--- a/QD_upload.xlsx
+++ b/QD_upload.xlsx
@@ -52,46 +52,46 @@
     <t>Delta WestQD</t>
   </si>
   <si>
-    <t>06/10/2025 14:22</t>
-  </si>
-  <si>
-    <t>06/10/2025 17:59</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 8, 1.05], [326, 2, 4, 0.42], [2327, 2, 4, 0.95], [5151, 2, 3, 1.06], [3, 2, 4, 0.81], [151, 1, 3, 0.8], [305, 2, 3, 0.76], [2328, 2, 4, 1.04], [1492, 1, 3, 0.79], [143, 2, 3, 0.98], [2778, 2, 4, 1.24], [8915, 2, 5, 0.75], [205, 2, 3, 0.74], [144, 2, 3, 0.97], [145, 2, 3, 0.97], [589, 2, 5, 0.9], [8648, 2, 4, 1.43], [19925, 2, 3, 1.15], [2424, 29, 3, 0.6], [146, 2, 3, 0.99], [8650, 2, 4, 1.25], [140, 2, 3, 0.63], [20258, 2, 3, 1.08], [83, 2, 3, 0.68], [75, 2, 3, 0.92], [7885, 4, 4, 0.53], [6097, 29, 3, 1.09], [7004, 1, 3, 0.49], [20252, 2, 3, 1.08], [6936, 2, 6, 1.15], [2912, 1, 3, 0.41], [1504, 2, 4, 1.38], [141, 2, 3, 0.98], [593, 2, 5, 0.53], [159, 1, 3, 0.7], [5165, 1, 3, 0.67], [10825, 1, 3, 0.8], [1490, 1, 3, 0.77], [6497, 1, 3, 0.63], [5005, 1, 3, 0.65], [1654, 2, 3, 1.01], [434, 2, 4, 0.29], [8853, 2, 5, 1.25], [12224, 1, 3, 0.51], [1656, 2, 3, 1.01], [6098, 29, 3, 0.95], [8938, 2, 4, 0.81], [8649, 2, 4, 1.67], [20256, 2, 3, 1.08], [9507, 3, 3, 0.63], [23, 1, 3, 0.72], [13028, 3, 3, 1.5], [856, 1, 3, 0.83], [308, 1, 4, 0.97], [126, 2, 3, 0.64], [1767, 2, 3, 0.69], [96, 1, 3, 0.93], [74, 1, 3, 1.5], [2775, 2, 3, 1.43], [79, 1, 3, 0.86], [20255, 2, 3, 1.1], [12225, 1, 3, 0.51], [615, 2, 4, 0.47], [25, 1, 3, 0.76], [1429, 2, 3, 0.81], [10825, 21, 8, 0.6], [21798, 1, 4, 1.21], [82, 2, 3, 0.7], [1413, 1, 3, 0.76], [1655, 2, 3, 1.0], [1446, 2, 3, 0.82], [1007, 2, 5, 0.42], [435, 2, 3, 0.36], [11454, 2, 5, 1.14], [7885, 1, 3, 0.54], [6097, 80, 3, 1.09], [1413, 15, 3, 0.77], [3670, 2, 4, 1.43], [1006, 2, 4, 0.69], [616, 2, 4, 0.53], [2497, 2, 3, 1.5], [1766, 2, 3, 0.66], [2776, 2, 3, 1.43], [10574, 3, 5, 0.49], [1413, 16, 3, 0.76], [9507, 1, 3, 0.63], [13260, 29, 3, 0.97], [8651, 2, 3, 1.5], [6098, 80, 3, 0.95], [2726, 3, 4, 0.8], [18, 1, 3, 0.59], [5208, 3, 4, 0.32], [2331, 1, 3, 0.89], [20498, 1, 3, 1.09], [1767, 25, 3, 0.69], [11767, 1, 3, 0.91], [11770, 1, 3, 0.66], [624, 2, 4, 0.6], [8939, 2, 3, 0.77], [974, 3, 4, 0.95]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 8, 1.0], [5151, 2, 3, 0.62], [326, 2, 4, 0.47], [2327, 2, 4, 0.87], [10529, 29, 4, 0.53], [3, 2, 4, 0.73], [6097, 29, 3, 0.78], [2328, 2, 4, 1.04], [362, 2, 4, 1.0], [1492, 1, 3, 0.7], [141, 2, 3, 0.98], [8648, 2, 4, 1.0], [8650, 2, 4, 1.11], [8915, 2, 5, 0.75], [83, 2, 3, 0.64], [6098, 29, 3, 0.86], [2424, 29, 3, 0.54], [75, 2, 3, 1.15], [2778, 2, 4, 1.23], [76, 2, 3, 0.97], [589, 2, 5, 0.9], [11737, 2, 3, 0.85], [10530, 29, 3, 0.56], [140, 2, 3, 0.63], [7004, 1, 3, 0.51], [7885, 4, 4, 0.53], [6936, 2, 8, 1.11], [143, 2, 3, 0.86], [1124, 2, 4, 0.78], [20252, 2, 3, 1.08], [1490, 1, 3, 0.66], [5005, 1, 3, 0.65], [159, 1, 3, 0.6], [10825, 1, 3, 0.8], [96, 1, 3, 0.99], [11739, 2, 3, 0.89], [20258, 2, 3, 1.08], [145, 2, 3, 0.86], [593, 2, 5, 0.44], [8853, 2, 5, 0.96], [79, 1, 3, 1.13], [1504, 2, 4, 1.37], [1654, 2, 3, 1.07], [9507, 3, 3, 0.63], [434, 2, 4, 0.31], [346, 1, 3, 0.93], [5165, 1, 3, 0.67], [1656, 2, 3, 1.08], [12224, 1, 3, 0.58], [2912, 1, 3, 0.55], [308, 1, 3, 0.63], [8938, 2, 4, 0.82], [12924, 1, 3, 0.44], [856, 1, 3, 0.84], [9507, 1, 3, 0.63], [13028, 3, 4, 1.29], [8649, 2, 4, 1.67], [126, 2, 3, 0.64], [8926, 1, 3, 0.78], [615, 2, 4, 0.54], [7005, 1, 3, 0.51], [96, 11, 15, 0.79], [1429, 2, 3, 0.79], [7885, 1, 3, 0.54], [20256, 2, 3, 1.08], [23, 1, 3, 0.75], [2878, 1, 3, 0.71], [167, 3, 4, 0.46], [1413, 1, 3, 0.8], [167, 1, 3, 0.47], [1007, 2, 6, 0.45], [214, 3, 9, 0.64], [9760, 29, 3, 0.78], [435, 2, 3, 0.43], [6097, 80, 3, 1.09], [25, 1, 3, 0.79], [1446, 2, 3, 0.8], [1655, 2, 3, 1.07], [13260, 29, 3, 1.08], [6098, 80, 3, 1.03], [152, 21, 3, 0.34], [20255, 2, 3, 1.1], [21798, 1, 4, 0.96], [110, 4, 4, 1.05], [2775, 2, 3, 1.43], [1413, 15, 3, 0.8], [10825, 21, 8, 0.6], [616, 2, 3, 0.68], [2497, 2, 4, 1.5], [110, 1, 3, 1.08], [11454, 2, 5, 0.96], [11767, 1, 3, 0.91], [5493, 2, 3, 0.65], [8651, 2, 4, 1.62], [10574, 3, 5, 0.53], [2991, 3, 3, 1.09], [1006, 2, 4, 0.64], [1703, 2, 3, 0.51], [8104, 1, 3, 0.44], [335, 3, 9, 0.61]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 8, 1.05], [2327, 2, 4, 0.97], [326, 2, 4, 0.56], [2778, 2, 4, 1.13], [589, 2, 4, 0.92], [9760, 29, 3, 0.62], [8648, 2, 4, 1.0], [362, 2, 4, 0.76], [5165, 1, 3, 0.67], [8650, 2, 4, 1.11], [130, 1, 3, 0.77], [305, 2, 4, 0.83], [11039, 2, 4, 1.41], [2328, 2, 4, 1.16], [140, 2, 3, 0.31], [8853, 2, 5, 0.89], [6097, 29, 3, 1.09], [2775, 2, 4, 1.16], [2912, 1, 3, 0.66], [2424, 29, 3, 0.9], [2776, 2, 4, 1.27], [5493, 2, 3, 0.9], [143, 2, 4, 0.88], [151, 1, 3, 0.69], [8649, 2, 4, 1.11], [434, 2, 3, 0.31], [615, 2, 3, 0.88], [159, 1, 3, 0.77], [7004, 1, 3, 0.57], [616, 2, 3, 0.77], [1656, 2, 3, 1.1], [1654, 2, 3, 1.1], [1446, 2, 3, 0.82], [11737, 2, 3, 0.89], [6097, 80, 3, 1.09], [5491, 2, 3, 0.72], [11739, 2, 3, 0.92], [3840, 1, 3, 0.81], [20258, 2, 3, 1.08], [12269, 2, 3, 0.88], [11426, 29, 3, 0.82], [1490, 1, 3, 0.54], [12224, 1, 3, 0.61], [20252, 2, 3, 1.08], [593, 2, 4, 0.54], [624, 2, 3, 0.92], [12271, 2, 3, 0.86], [1429, 2, 3, 0.81], [6494, 1, 3, 0.63], [583, 2, 3, 0.57], [3670, 2, 4, 1.43], [8915, 2, 4, 0.86], [11770, 1, 3, 0.58], [159, 3, 5, 0.82], [7084, 3, 3, 0.58], [6497, 1, 3, 0.79], [7084, 1, 3, 0.58], [11426, 25, 3, 0.81], [5165, 2, 5, 0.6], [11769, 1, 3, 0.94], [7885, 4, 3, 0.54], [126, 2, 3, 0.64], [2497, 2, 3, 1.07], [8926, 1, 3, 0.73], [11673, 1, 4, 1.03], [2912, 2, 5, 0.58], [11953, 1, 3, 0.69], [11676, 1, 3, 0.89], [11672, 1, 4, 0.95], [1007, 2, 4, 0.49], [8938, 2, 4, 0.84], [159, 16, 3, 1.08], [214, 3, 9, 0.56], [1243, 2, 3, 0.84], [7886, 4, 3, 0.54], [1126, 2, 3, 0.65], [8939, 2, 3, 0.77], [584, 2, 3, 0.57], [8283, 1, 3, 0.8], [5005, 1, 3, 0.76], [75, 2, 3, 0.9], [20256, 2, 3, 1.08], [8286, 1, 3, 0.8], [11808, 1, 4, 0.94], [14037, 3, 4, 0.51], [11164, 1, 3, 0.91], [8286, 2, 4, 0.8], [11811, 1, 4, 0.84], [21806, 1, 3, 0.87], [20255, 2, 3, 1.1], [389, 4, 3, 0.57], [3673, 2, 3, 1.5], [8283, 2, 4, 0.81], [1163, 3, 4, 0.52], [4651, 2, 3, 0.54], [9069, 1, 3, 0.6], [11586, 1, 4, 0.74], [74, 1, 3, 1.5], [2160, 68, 3, 0.84], [8285, 1, 3, 0.76]]</t>
-  </si>
-  <si>
-    <t>[[305, 2, 4, 0.73], [6935, 2, 8, 1.0], [2778, 2, 4, 0.85], [2328, 2, 4, 0.87], [5493, 2, 3, 0.65], [2327, 2, 4, 1.15], [8650, 2, 4, 1.0], [248, 1, 3, 0.77], [145, 2, 4, 0.86], [434, 2, 4, 0.36], [146, 2, 3, 0.8], [589, 2, 4, 0.85], [615, 2, 4, 0.8], [5491, 2, 3, 0.72], [6497, 1, 3, 0.76], [1504, 2, 4, 1.0], [75, 2, 4, 0.78], [2424, 29, 3, 0.9], [8853, 2, 5, 0.96], [326, 2, 4, 0.47], [378, 2, 4, 1.67], [8648, 2, 4, 1.43], [2776, 2, 4, 1.41], [159, 1, 3, 0.6], [435, 2, 3, 0.43], [2912, 1, 3, 0.38], [9507, 1, 3, 0.56], [1005, 2, 3, 0.68], [2422, 29, 3, 0.78], [1339, 1, 3, 0.64], [11681, 2, 8, 1.05], [8938, 2, 4, 0.74], [2497, 2, 4, 1.33], [9507, 3, 3, 0.55], [8915, 2, 4, 0.86], [5165, 1, 3, 0.72], [8649, 2, 3, 1.5], [3670, 2, 4, 1.11], [20252, 2, 3, 1.08], [1243, 2, 4, 0.74], [20256, 2, 3, 1.08], [6494, 1, 3, 0.72], [1126, 2, 4, 0.8], [2774, 2, 4, 1.28], [19980, 2, 3, 0.76], [140, 2, 3, 0.63], [1446, 2, 4, 0.82], [7004, 1, 3, 0.48], [3674, 2, 4, 1.25], [346, 1, 3, 0.81], [13028, 3, 3, 1.31], [2424, 80, 4, 1.09], [515, 1, 3, 1.08], [84, 2, 3, 0.72], [11089, 1, 4, 0.85], [1429, 2, 3, 0.81], [9081, 3, 8, 1.04], [12224, 1, 3, 0.49], [565, 2, 4, 0.71], [515, 24, 3, 1.08], [96, 11, 15, 0.83], [8943, 1, 3, 0.82], [11953, 1, 3, 0.6], [1163, 3, 4, 0.49], [214, 3, 9, 0.56], [8286, 1, 3, 0.68], [8283, 1, 3, 0.68], [1007, 2, 4, 0.59], [71, 1, 3, 0.98], [13034, 1, 3, 1.5], [8274, 3, 3, 0.43], [2422, 80, 4, 1.21], [11954, 1, 3, 0.54], [2331, 1, 3, 0.93], [2055, 3, 4, 0.71], [11180, 1, 3, 0.87], [159, 16, 3, 1.08], [96, 1, 3, 0.99], [9081, 1, 3, 1.31], [159, 3, 5, 0.83], [11158, 1, 6, 0.51], [8943, 3, 3, 0.79], [186, 3, 8, 0.41], [2322, 2, 3, 0.69], [346, 3, 4, 0.93], [13034, 3, 4, 1.29], [247, 1, 3, 0.89], [14037, 3, 4, 0.6], [8939, 2, 3, 0.77], [436, 2, 3, 0.8], [973, 1, 3, 0.95], [11772, 1, 4, 0.75], [13033, 1, 3, 1.47], [71, 16, 3, 0.97], [6359, 10, 9, 0.56], [1339, 3, 9, 0.64], [71, 15, 3, 0.97], [13033, 3, 4, 1.25], [9854, 1, 3, 1.5], [942, 3, 3, 1.06]]</t>
-  </si>
-  <si>
-    <t>[[5493, 2, 3, 0.65], [615, 2, 4, 0.95], [616, 2, 3, 0.76], [130, 1, 3, 0.76], [6935, 2, 6, 1.15], [2912, 1, 3, 0.47], [305, 2, 3, 0.89], [5165, 1, 3, 0.67], [151, 1, 3, 0.68], [2778, 2, 4, 1.41], [2327, 2, 4, 1.15], [7004, 1, 3, 0.5], [593, 2, 5, 0.62], [8648, 2, 4, 1.67], [1504, 2, 4, 1.37], [326, 2, 4, 0.63], [624, 2, 3, 0.92], [146, 2, 3, 0.96], [3893, 1, 3, 0.98], [8650, 2, 3, 1.25], [2424, 29, 3, 0.75], [3576, 29, 3, 0.82], [1492, 1, 3, 0.83], [2328, 2, 3, 1.31], [378, 2, 3, 1.25], [12269, 2, 3, 0.86], [11737, 2, 3, 0.78], [9760, 29, 3, 0.57], [2775, 2, 3, 1.43], [3577, 29, 3, 0.82], [3891, 1, 3, 0.98], [3889, 1, 3, 0.98], [434, 2, 3, 0.3], [589, 2, 4, 1.16], [5491, 2, 3, 0.72], [12224, 1, 3, 0.53], [8915, 2, 4, 0.85], [2497, 2, 3, 1.5], [2776, 2, 3, 1.43], [13928, 2, 3, 1.0], [12271, 2, 3, 0.82], [8649, 2, 3, 1.5], [9507, 3, 3, 0.55], [13928, 1, 3, 1.0], [3840, 1, 3, 0.49], [3575, 29, 3, 0.81], [11683, 2, 8, 1.43], [6496, 1, 3, 0.81], [3, 2, 3, 0.73], [140, 2, 3, 0.52], [7036, 1, 3, 0.5], [75, 2, 3, 0.88], [1656, 2, 3, 1.05], [7084, 3, 3, 0.56], [5490, 2, 3, 0.89], [61, 3, 4, 0.69], [97, 11, 12, 0.78], [11426, 29, 3, 0.82], [20252, 2, 3, 1.01], [12870, 1, 3, 0.51], [8938, 2, 4, 0.85], [823, 1, 3, 0.82], [583, 2, 3, 0.57], [435, 2, 3, 0.43], [1490, 1, 3, 0.82], [2774, 2, 3, 1.46], [12212, 29, 3, 0.9], [1654, 2, 3, 1.05], [1446, 2, 3, 0.8], [1005, 2, 3, 0.71], [3429, 15, 3, 0.75], [20256, 2, 3, 1.01], [214, 3, 8, 0.68], [9507, 1, 3, 0.56], [1429, 2, 3, 0.79], [6494, 1, 3, 0.8], [5165, 2, 5, 0.46], [2991, 3, 3, 1.09], [11179, 1, 3, 0.91], [2104, 3, 6, 0.66], [93, 11, 9, 0.58], [3670, 2, 4, 1.67], [346, 1, 3, 0.93], [5208, 3, 4, 0.49], [3577, 25, 3, 0.82], [3576, 25, 3, 0.82], [21793, 1, 4, 0.86], [1007, 2, 4, 0.56], [2912, 2, 5, 0.39], [74, 1, 3, 1.5], [436, 2, 3, 0.75], [2104, 1, 3, 0.93], [3575, 25, 3, 0.81], [21795, 1, 3, 0.83], [8939, 2, 3, 0.79], [2878, 1, 3, 0.71], [584, 2, 3, 0.57], [11672, 1, 4, 0.95], [2991, 1, 3, 1.09], [11770, 1, 3, 0.74]]</t>
-  </si>
-  <si>
-    <t>[[616, 2, 4, 0.58], [5493, 2, 3, 0.57], [615, 2, 4, 0.57], [2327, 2, 4, 1.15], [990, 2, 3, 0.81], [2328, 2, 4, 1.16], [2912, 1, 3, 0.47], [624, 2, 4, 0.55], [326, 2, 4, 0.57], [305, 2, 3, 0.85], [2778, 2, 4, 1.41], [6935, 2, 5, 0.89], [5165, 1, 3, 0.66], [144, 2, 3, 0.9], [2775, 2, 4, 1.42], [7004, 1, 3, 0.54], [8650, 2, 3, 1.07], [8648, 2, 4, 1.43], [143, 2, 3, 0.91], [589, 2, 4, 0.95], [378, 2, 3, 1.25], [9760, 29, 3, 0.88], [434, 2, 3, 0.36], [2776, 2, 3, 1.43], [3576, 29, 3, 0.82], [146, 2, 3, 0.92], [5491, 2, 3, 0.72], [140, 2, 3, 0.52], [3893, 1, 3, 0.94], [88, 10, 6, 0.34], [2424, 29, 3, 0.94], [141, 2, 3, 0.89], [8915, 2, 4, 0.79], [3840, 1, 3, 0.56], [12269, 2, 3, 0.85], [1504, 2, 4, 1.59], [1656, 2, 3, 1.04], [20252, 2, 3, 0.67], [20256, 2, 3, 0.76], [12224, 1, 3, 0.51], [593, 2, 4, 0.54], [3575, 29, 3, 0.81], [2497, 2, 3, 1.5], [9507, 3, 3, 0.58], [8649, 2, 3, 1.5], [9049, 2, 3, 1.5], [3577, 29, 3, 0.82], [11739, 2, 3, 0.77], [1654, 2, 3, 1.03], [8853, 2, 4, 1.0], [6097, 29, 3, 1.09], [1446, 2, 3, 0.82], [1413, 15, 3, 0.77], [75, 2, 3, 0.91], [10148, 1, 3, 0.59], [6496, 1, 3, 0.68], [126, 2, 3, 0.43], [8938, 2, 4, 0.91], [5490, 2, 3, 0.89], [1429, 2, 3, 0.81], [583, 2, 3, 0.57], [11426, 29, 3, 0.82], [5076, 1, 3, 0.8], [9491, 1, 3, 0.63], [2423, 29, 3, 0.94], [7036, 1, 3, 0.5], [1124, 2, 4, 0.77], [1243, 2, 3, 0.9], [9, 1, 3, 0.78], [2774, 2, 3, 1.46], [1413, 1, 3, 0.77], [1005, 2, 3, 0.63], [2424, 80, 4, 0.93], [1413, 16, 3, 0.77], [8651, 2, 3, 1.5], [9507, 1, 3, 0.57], [5165, 2, 5, 0.42], [346, 1, 3, 0.97], [2912, 2, 5, 0.4], [1414, 15, 3, 0.77], [11767, 1, 3, 0.87], [6097, 80, 3, 1.09], [2331, 1, 3, 0.88], [88, 1, 3, 0.65], [11671, 1, 4, 0.97], [11769, 1, 3, 0.89], [3576, 25, 3, 0.82], [110, 4, 3, 1.08], [1007, 2, 4, 0.64], [5208, 3, 4, 0.42], [8286, 1, 3, 0.81], [435, 2, 3, 0.43], [247, 1, 3, 0.96], [1548, 1, 3, 1.02], [6931, 2, 3, 0.9], [11770, 1, 3, 0.82], [972, 1, 3, 0.85], [8939, 2, 3, 0.85], [21794, 1, 3, 0.7], [584, 2, 3, 0.57]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 19, 3.66], [326, 2, 10, 1.4], [2327, 2, 9, 3.08], [5151, 2, 5, 2.15], [3, 2, 8, 2.21], [151, 1, 5, 1.69], [305, 2, 6, 2.19], [2328, 2, 8, 2.92], [1492, 1, 5, 1.59], [143, 2, 5, 2.0], [2778, 2, 7, 3.09], [8915, 2, 9, 1.81], [205, 2, 5, 1.57], [144, 2, 5, 1.99], [145, 2, 5, 2.0], [589, 2, 9, 2.16], [8648, 2, 7, 3.31], [19925, 2, 5, 2.37], [2424, 29, 8, 1.97], [146, 2, 5, 2.0], [8650, 2, 8, 3.4], [140, 2, 5, 1.27], [20258, 2, 5, 2.21], [83, 2, 5, 1.35], [75, 2, 5, 1.93], [7885, 4, 6, 1.07], [6097, 29, 5, 2.19], [7004, 1, 5, 1.01], [20252, 2, 5, 2.26], [6936, 2, 13, 3.24], [2912, 1, 8, 1.45], [1504, 2, 7, 3.44], [141, 2, 5, 2.07], [593, 2, 10, 1.42], [159, 1, 9, 2.54], [5165, 1, 5, 1.33], [10825, 1, 5, 1.54], [1490, 1, 5, 1.57], [6497, 1, 6, 1.72], [5005, 1, 6, 1.7], [1654, 2, 5, 2.02], [434, 2, 8, 0.76], [8853, 2, 10, 3.42], [12224, 1, 5, 1.08], [1656, 2, 5, 2.03], [6098, 29, 5, 1.95], [8938, 2, 6, 1.59], [8649, 2, 6, 3.14], [20256, 2, 5, 2.14], [9507, 3, 5, 1.41], [23, 1, 5, 1.47], [13028, 3, 5, 3.14], [856, 1, 5, 1.64], [308, 1, 7, 2.17], [126, 2, 5, 1.3], [1767, 2, 5, 1.42], [96, 1, 5, 1.76], [74, 1, 5, 3.11], [2775, 2, 5, 2.98], [79, 1, 5, 1.71], [20255, 2, 5, 2.29], [12225, 1, 5, 1.04], [615, 2, 12, 1.89], [25, 1, 5, 1.5], [1429, 2, 5, 1.65], [10825, 21, 13, 1.4], [21798, 1, 6, 2.34], [82, 2, 5, 1.4], [1413, 1, 5, 1.53], [1655, 2, 5, 1.99], [1446, 2, 5, 1.68], [1007, 2, 13, 1.85], [435, 2, 6, 0.99], [11454, 2, 11, 4.05], [7885, 1, 5, 1.08], [6097, 80, 5, 2.25], [1413, 15, 5, 1.53], [3670, 2, 7, 3.67], [1006, 2, 6, 1.37], [616, 2, 12, 2.01], [2497, 2, 5, 3.08], [1766, 2, 5, 1.32], [2776, 2, 5, 3.04], [10574, 3, 9, 1.29], [1413, 16, 5, 1.48], [9507, 1, 5, 1.24], [13260, 29, 5, 1.93], [8651, 2, 5, 3.06], [6098, 80, 5, 1.85], [2726, 3, 6, 1.6], [18, 1, 5, 1.18], [5208, 3, 10, 1.15], [2331, 1, 5, 1.76], [20498, 1, 5, 2.19], [1767, 25, 5, 1.56], [11767, 1, 5, 1.93], [11770, 1, 7, 2.02], [624, 2, 10, 1.83], [8939, 2, 5, 1.55], [974, 3, 6, 1.81]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 20, 3.62], [5151, 2, 8, 2.1], [326, 2, 9, 1.41], [2327, 2, 10, 3.19], [10529, 29, 12, 2.05], [3, 2, 8, 2.04], [6097, 29, 7, 2.28], [2328, 2, 8, 2.95], [362, 2, 6, 1.83], [1492, 1, 6, 1.99], [141, 2, 5, 2.1], [8648, 2, 10, 3.51], [8650, 2, 9, 3.54], [8915, 2, 9, 1.8], [83, 2, 5, 1.26], [6098, 29, 6, 2.09], [2424, 29, 9, 2.01], [75, 2, 5, 2.39], [2778, 2, 7, 3.16], [76, 2, 5, 1.95], [589, 2, 9, 2.16], [11737, 2, 5, 1.71], [10530, 29, 9, 2.14], [140, 2, 5, 1.26], [7004, 1, 5, 1.04], [7885, 4, 6, 1.05], [6936, 2, 18, 3.24], [143, 2, 5, 1.76], [1124, 2, 8, 2.3], [20252, 2, 5, 2.26], [1490, 1, 6, 1.77], [5005, 1, 6, 1.7], [159, 1, 9, 2.14], [10825, 1, 5, 1.54], [96, 1, 5, 1.86], [11739, 2, 5, 1.76], [20258, 2, 5, 2.19], [145, 2, 5, 1.73], [593, 2, 13, 1.79], [8853, 2, 13, 3.89], [79, 1, 5, 2.28], [1504, 2, 7, 3.47], [1654, 2, 5, 2.14], [9507, 3, 5, 1.48], [434, 2, 7, 0.74], [346, 1, 5, 1.87], [5165, 1, 5, 1.3], [1656, 2, 5, 2.14], [12224, 1, 5, 1.2], [2912, 1, 6, 1.41], [308, 1, 8, 2.26], [8938, 2, 6, 1.57], [12924, 1, 5, 0.89], [856, 1, 5, 1.68], [9507, 1, 5, 1.29], [13028, 3, 6, 2.47], [8649, 2, 6, 3.11], [126, 2, 5, 1.27], [8926, 1, 5, 1.63], [615, 2, 12, 2.18], [7005, 1, 5, 1.02], [96, 11, 23, 1.52], [1429, 2, 5, 1.64], [7885, 1, 5, 1.1], [20256, 2, 5, 2.17], [23, 1, 5, 1.57], [2878, 1, 5, 1.49], [167, 3, 6, 0.86], [1413, 1, 5, 1.6], [167, 1, 5, 0.92], [1007, 2, 13, 1.36], [214, 3, 13, 1.4], [9760, 29, 5, 1.56], [435, 2, 5, 0.89], [6097, 80, 5, 2.2], [25, 1, 5, 1.58], [1446, 2, 5, 1.67], [1655, 2, 5, 2.12], [13260, 29, 5, 2.26], [6098, 80, 5, 2.01], [152, 21, 5, 0.69], [20255, 2, 5, 2.33], [21798, 1, 6, 1.88], [110, 4, 6, 2.1], [2775, 2, 5, 2.98], [1413, 15, 5, 1.58], [10825, 21, 13, 1.39], [616, 2, 8, 2.33], [2497, 2, 6, 2.82], [110, 1, 5, 2.27], [11454, 2, 13, 3.95], [11767, 1, 5, 1.95], [5493, 2, 7, 1.84], [8651, 2, 6, 3.16], [10574, 3, 8, 1.2], [2991, 3, 5, 2.37], [1006, 2, 7, 1.63], [1703, 2, 9, 2.06], [8104, 1, 7, 1.26], [335, 3, 16, 1.72]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 19, 3.43], [2327, 2, 9, 2.96], [326, 2, 7, 1.29], [2778, 2, 8, 3.23], [589, 2, 8, 2.7], [9760, 29, 8, 2.26], [8648, 2, 10, 3.29], [362, 2, 8, 1.92], [5165, 1, 5, 1.36], [8650, 2, 9, 3.23], [130, 1, 5, 1.56], [305, 2, 6, 1.51], [11039, 2, 6, 2.52], [2328, 2, 7, 2.68], [140, 2, 6, 0.86], [8853, 2, 14, 3.53], [6097, 29, 5, 2.22], [2775, 2, 8, 3.1], [2912, 1, 5, 1.35], [2424, 29, 5, 1.81], [2776, 2, 7, 2.95], [5493, 2, 6, 2.41], [143, 2, 6, 1.62], [151, 1, 5, 1.36], [8649, 2, 9, 3.22], [434, 2, 6, 0.86], [615, 2, 6, 2.22], [159, 1, 7, 2.54], [7004, 1, 5, 1.12], [616, 2, 7, 2.24], [1656, 2, 5, 2.16], [1654, 2, 5, 2.13], [1446, 2, 5, 1.64], [11737, 2, 5, 1.86], [6097, 80, 5, 2.15], [5491, 2, 5, 1.4], [11739, 2, 5, 1.88], [3840, 1, 5, 1.58], [20258, 2, 5, 2.18], [12269, 2, 5, 1.79], [11426, 29, 5, 1.8], [1490, 1, 7, 1.58], [12224, 1, 5, 1.25], [20252, 2, 5, 2.15], [593, 2, 10, 1.88], [624, 2, 6, 2.49], [12271, 2, 5, 1.75], [1429, 2, 5, 1.61], [6494, 1, 6, 1.6], [583, 2, 5, 1.13], [3670, 2, 7, 3.31], [8915, 2, 6, 1.6], [11770, 1, 8, 2.08], [159, 3, 8, 1.85], [7084, 3, 5, 1.18], [6497, 1, 5, 1.61], [7084, 1, 5, 1.1], [11426, 25, 5, 1.7], [5165, 2, 7, 0.99], [11769, 1, 5, 1.96], [7885, 4, 5, 1.09], [126, 2, 5, 1.31], [2497, 2, 7, 3.78], [8926, 1, 5, 1.55], [11673, 1, 8, 2.63], [2912, 2, 7, 0.93], [11953, 1, 7, 2.27], [11676, 1, 5, 1.81], [11672, 1, 9, 2.54], [1007, 2, 9, 1.64], [8938, 2, 6, 1.5], [159, 16, 5, 2.07], [214, 3, 14, 1.3], [1243, 2, 5, 1.71], [7886, 4, 5, 1.12], [1126, 2, 6, 1.71], [8939, 2, 5, 1.51], [584, 2, 5, 1.09], [8283, 1, 5, 1.6], [5005, 1, 5, 1.82], [75, 2, 5, 1.82], [20256, 2, 5, 2.1], [8286, 1, 5, 1.77], [11808, 1, 6, 1.79], [14037, 3, 6, 0.95], [11164, 1, 6, 2.32], [8286, 2, 6, 1.52], [11811, 1, 6, 1.66], [21806, 1, 5, 1.71], [20255, 2, 5, 2.11], [389, 4, 5, 1.26], [3673, 2, 5, 2.76], [8283, 2, 6, 1.46], [1163, 3, 6, 0.95], [4651, 2, 5, 1.12], [9069, 1, 5, 1.2], [11586, 1, 9, 2.04], [74, 1, 5, 2.9], [2160, 68, 5, 1.64], [8285, 1, 5, 1.66]]</t>
-  </si>
-  <si>
-    <t>[[305, 2, 8, 1.91], [6935, 2, 20, 3.29], [2778, 2, 11, 3.89], [2328, 2, 10, 2.97], [5493, 2, 7, 2.1], [2327, 2, 7, 2.72], [8650, 2, 10, 3.54], [248, 1, 5, 1.55], [145, 2, 7, 1.9], [434, 2, 6, 0.65], [146, 2, 6, 2.2], [589, 2, 9, 2.76], [615, 2, 9, 2.35], [5491, 2, 5, 1.46], [6497, 1, 5, 1.59], [1504, 2, 10, 3.72], [75, 2, 7, 1.8], [2424, 29, 6, 2.18], [8853, 2, 13, 3.61], [326, 2, 9, 1.37], [378, 2, 6, 3.21], [8648, 2, 7, 3.42], [2776, 2, 6, 2.67], [159, 1, 9, 2.17], [435, 2, 5, 0.9], [2912, 1, 9, 1.67], [9507, 1, 5, 1.17], [1005, 2, 5, 1.37], [2422, 29, 7, 2.56], [1339, 1, 8, 2.29], [11681, 2, 19, 3.24], [8938, 2, 7, 1.69], [2497, 2, 7, 3.17], [9507, 3, 5, 1.15], [8915, 2, 7, 2.08], [5165, 1, 5, 1.38], [8649, 2, 5, 2.96], [3670, 2, 9, 3.95], [20252, 2, 5, 2.15], [1243, 2, 6, 1.36], [20256, 2, 5, 2.17], [6494, 1, 5, 1.48], [1126, 2, 6, 1.54], [2774, 2, 7, 3.11], [19980, 2, 5, 1.53], [140, 2, 5, 1.27], [1446, 2, 6, 1.51], [7004, 1, 6, 1.27], [3674, 2, 8, 3.66], [346, 1, 6, 2.13], [13028, 3, 5, 2.74], [2424, 80, 6, 1.88], [515, 1, 5, 2.23], [84, 2, 5, 1.4], [11089, 1, 7, 1.96], [1429, 2, 5, 1.62], [9081, 3, 12, 2.1], [12224, 1, 6, 1.29], [565, 2, 7, 1.72], [515, 24, 5, 2.29], [96, 11, 21, 1.38], [8943, 1, 5, 1.62], [11953, 1, 8, 2.06], [1163, 3, 7, 1.27], [214, 3, 14, 1.29], [8286, 1, 5, 1.4], [8283, 1, 5, 1.4], [1007, 2, 9, 1.78], [71, 1, 5, 2.03], [13034, 1, 5, 2.93], [8274, 3, 6, 1.29], [2422, 80, 6, 2.24], [11954, 1, 9, 2.13], [2331, 1, 5, 1.84], [2055, 3, 6, 1.32], [11180, 1, 5, 1.75], [159, 16, 5, 2.16], [96, 1, 5, 2.04], [9081, 1, 5, 2.97], [159, 3, 8, 1.79], [11158, 1, 18, 1.95], [8943, 3, 5, 1.75], [186, 3, 14, 1.32], [2322, 2, 5, 1.35], [346, 3, 6, 1.71], [13034, 3, 7, 3.42], [247, 1, 5, 1.75], [14037, 3, 6, 1.22], [8939, 2, 5, 1.58], [436, 2, 5, 1.64], [973, 1, 5, 2.06], [11772, 1, 8, 1.97], [13033, 1, 5, 2.91], [71, 16, 5, 1.86], [6359, 10, 14, 1.44], [1339, 3, 18, 2.16], [71, 15, 5, 1.95], [13033, 3, 7, 3.31], [9854, 1, 5, 2.95], [942, 3, 5, 2.5]]</t>
-  </si>
-  <si>
-    <t>[[5493, 2, 7, 2.07], [615, 2, 7, 2.13], [616, 2, 7, 2.39], [130, 1, 5, 1.58], [6935, 2, 13, 3.33], [2912, 1, 7, 1.45], [305, 2, 5, 1.82], [5165, 1, 5, 1.35], [151, 1, 5, 1.43], [2778, 2, 6, 2.68], [2327, 2, 7, 2.76], [7004, 1, 5, 1.0], [593, 2, 9, 1.48], [8648, 2, 6, 3.09], [1504, 2, 7, 3.49], [326, 2, 6, 1.18], [624, 2, 6, 2.55], [146, 2, 5, 1.95], [3893, 1, 5, 2.03], [8650, 2, 6, 3.48], [2424, 29, 6, 2.07], [3576, 29, 5, 1.64], [1492, 1, 5, 1.68], [2328, 2, 5, 2.67], [378, 2, 6, 3.58], [12269, 2, 5, 1.73], [11737, 2, 5, 1.58], [9760, 29, 7, 1.77], [2775, 2, 5, 3.0], [3577, 29, 5, 1.62], [3891, 1, 5, 2.01], [3889, 1, 5, 2.04], [434, 2, 6, 0.82], [589, 2, 6, 2.18], [5491, 2, 5, 1.44], [12224, 1, 5, 1.12], [8915, 2, 7, 2.11], [2497, 2, 5, 3.13], [2776, 2, 5, 2.99], [13928, 2, 5, 1.97], [12271, 2, 5, 1.65], [8649, 2, 5, 3.01], [9507, 3, 5, 1.17], [13928, 1, 5, 2.0], [3840, 1, 8, 1.8], [3575, 29, 5, 1.63], [11683, 2, 14, 4.88], [6496, 1, 5, 1.62], [3, 2, 5, 1.51], [140, 2, 6, 1.34], [7036, 1, 9, 1.91], [75, 2, 5, 1.79], [1656, 2, 5, 2.1], [7084, 3, 5, 1.16], [5490, 2, 5, 1.74], [61, 3, 6, 1.27], [97, 11, 18, 1.51], [11426, 29, 5, 1.65], [20252, 2, 5, 2.04], [12870, 1, 9, 1.89], [8938, 2, 6, 1.6], [823, 1, 5, 1.69], [583, 2, 5, 1.13], [435, 2, 5, 0.85], [1490, 1, 5, 1.65], [2774, 2, 5, 3.0], [12212, 29, 5, 1.83], [1654, 2, 5, 2.05], [1446, 2, 5, 1.62], [1005, 2, 5, 1.4], [3429, 15, 5, 1.46], [20256, 2, 5, 2.04], [214, 3, 12, 1.22], [9507, 1, 5, 1.1], [1429, 2, 5, 1.6], [6494, 1, 5, 1.55], [5165, 2, 9, 1.43], [2991, 3, 5, 2.47], [11179, 1, 5, 1.87], [2104, 3, 9, 1.45], [93, 11, 18, 1.98], [3670, 2, 6, 3.09], [346, 1, 5, 1.89], [5208, 3, 7, 1.17], [3577, 25, 5, 1.69], [3576, 25, 5, 1.75], [21793, 1, 9, 2.25], [1007, 2, 9, 1.78], [2912, 2, 11, 1.48], [74, 1, 5, 3.0], [436, 2, 5, 1.46], [2104, 1, 5, 1.81], [3575, 25, 5, 1.65], [21795, 1, 7, 2.55], [8939, 2, 5, 1.65], [2878, 1, 5, 1.48], [584, 2, 5, 1.14], [11672, 1, 9, 2.68], [2991, 1, 5, 2.09], [11770, 1, 6, 1.98]]</t>
-  </si>
-  <si>
-    <t>[[616, 2, 11, 2.16], [5493, 2, 8, 1.97], [615, 2, 10, 1.85], [2327, 2, 7, 2.73], [990, 2, 5, 1.67], [2328, 2, 7, 2.68], [2912, 1, 7, 1.54], [624, 2, 11, 2.17], [326, 2, 7, 1.26], [305, 2, 5, 1.76], [2778, 2, 6, 2.67], [6935, 2, 14, 3.68], [5165, 1, 5, 1.29], [144, 2, 5, 1.82], [2775, 2, 6, 2.64], [7004, 1, 5, 1.1], [8650, 2, 7, 3.6], [8648, 2, 7, 3.26], [143, 2, 5, 1.85], [589, 2, 8, 2.57], [378, 2, 6, 3.61], [9760, 29, 5, 1.73], [434, 2, 5, 0.73], [2776, 2, 5, 2.95], [3576, 29, 5, 1.62], [146, 2, 5, 1.86], [5491, 2, 5, 1.42], [140, 2, 6, 1.34], [3893, 1, 5, 1.93], [88, 10, 15, 1.41], [2424, 29, 5, 1.83], [141, 2, 5, 1.82], [8915, 2, 8, 2.16], [3840, 1, 8, 2.12], [12269, 2, 5, 1.73], [1504, 2, 6, 2.91], [1656, 2, 5, 2.07], [20252, 2, 8, 2.42], [20256, 2, 7, 2.27], [12224, 1, 5, 1.07], [593, 2, 10, 1.78], [3575, 29, 5, 1.71], [2497, 2, 5, 3.05], [9507, 3, 5, 1.22], [8649, 2, 5, 3.04], [9049, 2, 5, 3.13], [3577, 29, 5, 1.67], [11739, 2, 5, 1.49], [1654, 2, 5, 2.05], [8853, 2, 10, 3.11], [6097, 29, 5, 2.18], [1446, 2, 5, 1.66], [1413, 15, 5, 1.51], [75, 2, 6, 2.52], [10148, 1, 6, 1.54], [6496, 1, 5, 1.38], [126, 2, 5, 0.85], [8938, 2, 6, 1.69], [5490, 2, 5, 1.74], [1429, 2, 5, 1.63], [583, 2, 5, 1.15], [11426, 29, 5, 1.7], [5076, 1, 6, 2.28], [9491, 1, 6, 1.55], [2423, 29, 5, 1.9], [7036, 1, 9, 1.87], [1124, 2, 8, 2.15], [1243, 2, 5, 1.85], [9, 1, 5, 1.62], [2774, 2, 5, 2.89], [1413, 1, 5, 1.49], [1005, 2, 5, 1.31], [2424, 80, 6, 1.74], [1413, 16, 5, 1.48], [8651, 2, 5, 2.97], [9507, 1, 5, 1.14], [5165, 2, 11, 1.49], [346, 1, 5, 1.93], [2912, 2, 11, 1.44], [1414, 15, 5, 1.51], [11767, 1, 5, 1.81], [6097, 80, 5, 2.22], [2331, 1, 5, 1.69], [88, 1, 5, 1.31], [11671, 1, 9, 2.73], [11769, 1, 5, 1.82], [3576, 25, 5, 1.74], [110, 4, 5, 2.42], [1007, 2, 8, 1.77], [5208, 3, 7, 1.01], [8286, 1, 5, 1.6], [435, 2, 5, 0.89], [247, 1, 5, 1.91], [1548, 1, 5, 2.01], [6931, 2, 5, 1.72], [11770, 1, 6, 2.05], [972, 1, 5, 1.79], [8939, 2, 5, 1.71], [21794, 1, 7, 2.07], [584, 2, 5, 1.13]]</t>
+    <t>21/10/2025 17:31</t>
+  </si>
+  <si>
+    <t>21/10/2025 00:59</t>
+  </si>
+  <si>
+    <t>[[130, 1, 3, 0.62], [6935, 2, 8, 0.84], [3, 2, 4, 1.14], [151, 1, 3, 0.61], [2049, 1, 3, 0.67], [305, 2, 3, 0.98], [1492, 1, 3, 1.2], [2778, 2, 4, 1.14], [143, 2, 3, 1.04], [205, 2, 3, 0.8], [144, 2, 3, 1.04], [2049, 3, 8, 0.47], [145, 2, 3, 1.04], [2424, 29, 3, 0.86], [146, 2, 3, 1.05], [20258, 2, 3, 1.2], [75, 2, 3, 1.2], [83, 2, 3, 0.6], [6936, 2, 5, 0.77], [20252, 2, 3, 1.14], [7004, 1, 3, 0.7], [6097, 29, 3, 1.2], [159, 1, 3, 0.6], [1490, 1, 3, 1.2], [141, 2, 3, 0.8], [1504, 2, 4, 1.14], [2912, 1, 3, 1.0], [362, 2, 3, 1.08], [76, 2, 3, 1.2], [5165, 1, 3, 0.83], [6497, 1, 3, 1.2], [5005, 1, 3, 0.4], [11739, 2, 3, 0.77], [9760, 29, 3, 1.05], [12224, 1, 3, 0.95], [8853, 2, 4, 0.8], [6098, 29, 3, 1.15], [823, 1, 3, 1.2], [97, 11, 15, 0.75], [13028, 3, 3, 1.2], [88, 10, 6, 0.49], [20256, 2, 3, 1.2], [2423, 29, 3, 1.1], [79, 1, 3, 1.03], [308, 1, 4, 1.14], [74, 1, 3, 1.2], [1767, 2, 3, 0.66], [12225, 1, 3, 0.95], [2775, 2, 3, 1.2], [10148, 1, 3, 0.64], [20255, 2, 3, 1.05], [615, 2, 4, 0.67], [10149, 3, 14, 0.7], [1413, 1, 3, 0.99], [2050, 3, 4, 0.72], [229, 1, 3, 1.16], [167, 3, 3, 0.71], [1413, 15, 3, 0.99], [11454, 2, 5, 1.0], [6097, 80, 3, 1.2], [616, 2, 4, 0.67], [2054, 3, 4, 0.85], [2057, 3, 4, 0.73], [3670, 2, 4, 1.14], [2497, 2, 3, 1.2], [1766, 2, 3, 0.63], [286, 3, 3, 0.9], [167, 1, 3, 0.72], [13260, 29, 3, 1.12], [1413, 16, 3, 0.99], [1070, 2, 3, 1.2], [2776, 2, 3, 1.2], [24, 1, 3, 0.82], [6098, 80, 3, 1.15], [9372, 1, 3, 0.67], [110, 4, 3, 0.83], [2726, 3, 4, 1.09], [1080, 3, 3, 1.2], [18, 1, 3, 0.6], [9069, 1, 3, 0.6], [1070, 7, 8, 0.85], [624, 2, 4, 0.67], [974, 3, 4, 1.12], [5208, 3, 4, 0.34], [1767, 25, 3, 0.66], [2331, 1, 3, 1.2], [1163, 3, 4, 0.46], [8104, 1, 3, 0.59], [11770, 1, 3, 0.86], [9613, 1, 3, 0.62], [1087, 1, 3, 1.2], [88, 1, 3, 0.85], [11089, 1, 3, 1.2], [8677, 3, 4, 1.33], [97, 1, 3, 0.94], [110, 1, 3, 0.84], [2424, 80, 3, 1.2], [1766, 25, 3, 0.63], [10149, 1, 3, 1.01], [335, 3, 9, 0.55]]</t>
+  </si>
+  <si>
+    <t>[[130, 1, 3, 0.77], [6935, 2, 8, 0.8], [3, 2, 4, 0.76], [10529, 29, 4, 0.67], [2049, 1, 3, 0.66], [6097, 29, 3, 1.0], [1492, 1, 3, 0.48], [141, 2, 3, 0.87], [305, 2, 3, 0.77], [75, 2, 3, 1.2], [2778, 2, 4, 1.14], [83, 2, 3, 0.56], [6098, 29, 3, 1.15], [205, 2, 3, 0.86], [76, 2, 3, 1.19], [2049, 3, 8, 0.49], [2424, 29, 3, 0.67], [11737, 2, 3, 0.82], [66, 1, 3, 1.03], [10530, 29, 3, 0.49], [7004, 1, 3, 0.72], [6936, 2, 6, 0.86], [144, 2, 3, 0.85], [159, 1, 3, 0.29], [20252, 2, 3, 1.2], [206, 2, 3, 0.86], [1490, 1, 3, 0.81], [146, 2, 3, 0.86], [1776, 1, 4, 1.33], [143, 2, 3, 0.86], [413, 1, 3, 1.03], [20258, 2, 3, 1.2], [79, 1, 3, 1.19], [2423, 29, 3, 1.1], [8853, 2, 5, 0.77], [1504, 2, 4, 1.0], [145, 2, 3, 0.85], [346, 1, 3, 0.87], [10149, 3, 14, 0.51], [88, 10, 6, 0.49], [12224, 1, 3, 0.66], [308, 1, 3, 0.75], [13028, 3, 4, 1.33], [8926, 1, 3, 0.62], [5165, 1, 3, 0.83], [2912, 1, 3, 0.58], [12924, 1, 3, 0.42], [615, 2, 4, 0.67], [23, 1, 3, 0.69], [20256, 2, 3, 1.06], [1413, 1, 3, 0.93], [9760, 29, 3, 1.05], [167, 1, 3, 0.87], [167, 3, 4, 0.87], [214, 3, 9, 0.66], [6097, 80, 3, 1.2], [13260, 29, 3, 1.14], [74, 1, 3, 1.2], [6098, 80, 3, 1.15], [7036, 1, 3, 0.75], [20255, 2, 3, 1.19], [3495, 3, 15, 0.65], [1413, 15, 3, 0.93], [10149, 1, 3, 0.65], [286, 3, 3, 0.9], [2775, 2, 3, 1.2], [1703, 2, 3, 0.75], [2497, 2, 4, 1.33], [616, 2, 3, 0.75], [8104, 1, 3, 0.44], [66, 16, 3, 1.03], [11454, 2, 5, 1.0], [88, 1, 3, 0.85], [335, 3, 9, 0.65], [12225, 1, 3, 0.66], [168, 3, 4, 0.43], [1414, 1, 3, 0.97], [1413, 16, 3, 0.93], [2322, 2, 3, 1.06], [2726, 3, 4, 1.16], [3670, 2, 4, 0.56], [18, 1, 3, 0.6], [336, 15, 3, 0.77], [1414, 15, 3, 0.97], [10529, 80, 3, 1.2], [624, 2, 4, 0.89], [168, 1, 3, 0.49], [24, 1, 3, 0.82], [5208, 3, 4, 0.34], [9069, 1, 3, 0.6], [11770, 1, 3, 1.0], [2331, 1, 3, 0.96], [27, 1, 3, 0.68], [2776, 2, 3, 1.2], [8945, 1, 3, 0.92], [9613, 1, 3, 0.62], [12369, 1, 3, 1.2], [11952, 1, 3, 0.86], [14037, 3, 4, 0.49], [8677, 3, 4, 0.92]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 8, 0.84], [2778, 2, 4, 0.8], [9760, 29, 3, 0.85], [362, 2, 4, 1.0], [130, 1, 3, 0.78], [141, 2, 4, 0.67], [5165, 1, 3, 0.83], [305, 2, 4, 0.96], [8853, 2, 5, 0.71], [2775, 2, 4, 1.14], [6097, 29, 3, 1.2], [2776, 2, 4, 1.14], [2424, 29, 3, 1.2], [2912, 1, 3, 1.2], [143, 2, 4, 0.92], [3576, 29, 3, 0.72], [1492, 1, 3, 1.2], [615, 2, 3, 1.0], [361, 2, 3, 0.82], [205, 2, 3, 0.8], [159, 1, 3, 0.77], [7004, 1, 3, 0.69], [11089, 1, 3, 0.67], [616, 2, 3, 1.0], [6936, 2, 6, 0.67], [6098, 29, 3, 1.15], [3840, 1, 3, 1.2], [2423, 29, 3, 1.1], [11739, 2, 3, 0.82], [206, 2, 3, 0.8], [6097, 80, 3, 1.2], [20258, 2, 3, 1.2], [12269, 2, 3, 1.2], [6952, 1, 4, 1.14], [12224, 1, 3, 0.98], [20252, 2, 3, 1.11], [1490, 1, 3, 1.2], [11426, 29, 3, 0.74], [12271, 2, 3, 1.2], [624, 2, 3, 1.2], [6098, 80, 3, 1.15], [12870, 1, 3, 1.0], [3429, 15, 3, 0.86], [2424, 80, 3, 1.2], [3670, 2, 4, 1.33], [159, 3, 5, 0.79], [1309, 1, 3, 1.12], [2331, 1, 3, 1.2], [3, 2, 3, 1.2], [7885, 4, 3, 0.5], [11426, 25, 3, 0.73], [5165, 2, 5, 0.77], [11767, 1, 3, 1.06], [1413, 15, 3, 1.01], [8926, 1, 3, 0.58], [13028, 3, 3, 1.2], [2912, 2, 5, 1.24], [2423, 80, 3, 1.11], [2497, 2, 3, 1.2], [1801, 1, 3, 1.2], [3429, 16, 3, 0.87], [159, 16, 3, 1.08], [1413, 1, 3, 1.02], [8283, 1, 3, 1.2], [3016, 68, 3, 0.75], [75, 2, 3, 1.2], [20256, 2, 3, 1.2], [5005, 1, 3, 0.76], [12764, 1, 3, 0.97], [3429, 1, 3, 0.87], [1413, 16, 3, 1.02], [5208, 3, 4, 0.41], [8286, 1, 3, 1.2], [12369, 1, 3, 1.2], [2438, 1, 3, 0.94], [12369, 3, 5, 1.25], [11808, 1, 4, 1.33], [14037, 3, 4, 0.61], [11164, 1, 3, 1.01], [10408, 1, 3, 1.2], [8286, 2, 4, 1.26], [1163, 3, 4, 0.85], [432, 3, 4, 0.79], [20255, 2, 3, 1.03], [2160, 68, 3, 0.93], [11586, 1, 4, 0.89], [9069, 1, 3, 0.6], [432, 1, 3, 0.81], [8283, 2, 4, 1.29], [3673, 2, 3, 1.2], [3016, 3, 3, 0.75], [5209, 3, 4, 0.47], [8285, 1, 3, 1.2], [12764, 2, 4, 0.59], [10407, 1, 3, 1.12], [74, 1, 3, 1.2], [8274, 3, 3, 0.56], [8600, 1, 3, 1.2], [5005, 3, 4, 0.75], [8635, 3, 3, 0.6]]</t>
+  </si>
+  <si>
+    <t>[[130, 1, 3, 0.81], [6935, 2, 8, 0.67], [305, 2, 4, 0.79], [2778, 2, 4, 0.73], [141, 2, 4, 0.75], [145, 2, 4, 0.82], [143, 2, 4, 0.82], [146, 2, 3, 0.76], [615, 2, 4, 1.14], [2424, 29, 3, 1.0], [1504, 2, 4, 0.89], [75, 2, 4, 1.14], [6497, 1, 3, 1.0], [2423, 29, 3, 1.1], [205, 2, 3, 0.77], [8853, 2, 4, 0.67], [159, 1, 4, 0.6], [2776, 2, 4, 1.33], [9507, 1, 3, 0.56], [2912, 1, 3, 1.0], [3, 2, 4, 1.14], [1492, 1, 3, 1.2], [2422, 29, 3, 1.2], [1339, 1, 3, 0.84], [9507, 3, 3, 0.55], [2049, 3, 6, 0.4], [5165, 1, 3, 0.83], [2497, 2, 4, 1.14], [6494, 1, 3, 0.41], [20252, 2, 3, 0.6], [3670, 2, 4, 0.76], [20256, 2, 3, 1.06], [2774, 2, 4, 1.14], [1413, 15, 3, 1.03], [1413, 1, 3, 1.03], [1413, 16, 3, 1.02], [2424, 80, 4, 1.33], [2423, 80, 4, 1.11], [6936, 2, 5, 0.71], [3674, 2, 4, 0.79], [11089, 1, 3, 0.86], [74, 1, 3, 1.2], [6952, 1, 4, 1.33], [9126, 1, 3, 0.91], [1163, 3, 4, 0.63], [8283, 1, 3, 1.03], [9124, 1, 3, 0.87], [2050, 3, 4, 0.72], [71, 1, 3, 0.99], [8286, 1, 3, 1.02], [2422, 80, 3, 1.2], [114, 3, 3, 0.92], [2331, 1, 3, 1.0], [13260, 29, 3, 1.12], [2050, 1, 4, 0.53], [2326, 2, 3, 0.7], [2055, 3, 4, 0.84], [11954, 1, 3, 0.71], [247, 1, 3, 0.9], [11158, 1, 8, 0.54], [159, 16, 3, 1.08], [159, 3, 5, 0.8], [2322, 2, 3, 0.72], [12764, 1, 3, 1.08], [1886, 2, 3, 0.58], [14037, 3, 4, 0.59], [186, 3, 8, 0.53], [10411, 1, 3, 1.04], [7629, 1, 3, 0.97], [1339, 3, 9, 0.65], [335, 3, 9, 0.46], [11677, 1, 4, 0.51], [973, 1, 3, 0.95], [6359, 10, 9, 0.49], [71, 15, 3, 0.97], [71, 16, 3, 0.99], [20927, 1, 3, 0.83], [114, 1, 3, 0.92], [1548, 1, 3, 1.2], [10411, 10, 6, 0.71], [10406, 1, 3, 0.89], [8285, 1, 3, 1.05], [8283, 2, 4, 1.01], [3016, 68, 3, 1.2], [5208, 3, 4, 0.49], [13023, 1, 3, 1.2], [3257, 4, 3, 0.66], [19878, 1, 3, 0.58], [1895, 3, 4, 0.83], [5165, 2, 5, 0.76], [2436, 4, 3, 0.56], [2912, 2, 5, 1.33], [8286, 2, 4, 1.01], [8599, 1, 3, 1.2], [11808, 1, 4, 1.33], [12764, 2, 5, 0.87], [1801, 1, 3, 1.2], [432, 3, 4, 1.17], [8898, 3, 4, 1.33], [8285, 2, 4, 1.04]]</t>
+  </si>
+  <si>
+    <t>[[130, 1, 3, 0.67], [615, 2, 4, 0.78], [6935, 2, 6, 0.92], [616, 2, 3, 0.7], [2912, 1, 3, 0.86], [305, 2, 3, 0.92], [151, 1, 3, 0.73], [2778, 2, 4, 1.33], [5165, 1, 3, 0.83], [144, 2, 3, 1.06], [7004, 1, 3, 0.92], [1504, 2, 4, 1.14], [205, 2, 3, 0.78], [624, 2, 3, 0.93], [3893, 1, 3, 1.15], [146, 2, 3, 1.07], [6497, 1, 3, 1.2], [1492, 1, 3, 1.2], [141, 2, 3, 0.8], [3576, 29, 3, 1.01], [12269, 2, 3, 1.2], [159, 1, 3, 0.9], [9760, 29, 3, 1.0], [11737, 2, 3, 0.79], [3889, 1, 3, 1.15], [3891, 1, 3, 1.15], [88, 10, 8, 0.56], [2049, 1, 3, 0.65], [2775, 2, 3, 1.2], [3577, 29, 3, 0.83], [12224, 1, 3, 0.95], [2497, 2, 3, 1.2], [3840, 1, 3, 0.86], [2776, 2, 3, 1.2], [2049, 3, 6, 0.52], [13028, 3, 3, 1.2], [12271, 2, 3, 1.2], [11739, 2, 3, 0.82], [6496, 1, 3, 1.2], [3, 2, 3, 1.2], [75, 2, 3, 1.2], [3575, 29, 3, 0.98], [61, 3, 4, 0.65], [2423, 29, 3, 1.1], [20252, 2, 3, 1.2], [11426, 29, 3, 0.81], [12212, 29, 3, 0.88], [1413, 15, 3, 0.77], [2774, 2, 3, 1.2], [6494, 1, 3, 0.69], [2050, 3, 4, 1.14], [1413, 1, 3, 0.78], [214, 3, 8, 0.73], [33, 1, 3, 0.88], [20256, 2, 3, 1.2], [159, 3, 5, 0.83], [88, 1, 3, 0.85], [336, 15, 3, 1.18], [2055, 3, 4, 1.33], [5165, 2, 5, 0.61], [346, 1, 3, 0.94], [9372, 1, 4, 0.61], [2104, 3, 6, 0.62], [8853, 2, 4, 0.8], [3577, 25, 3, 0.83], [3670, 2, 3, 1.2], [2912, 2, 5, 0.93], [159, 16, 3, 1.08], [3576, 25, 3, 1.01], [1414, 15, 3, 0.81], [5208, 3, 4, 0.54], [1413, 16, 3, 0.78], [1309, 1, 3, 1.12], [21793, 1, 4, 1.0], [286, 3, 3, 0.58], [11769, 1, 3, 1.16], [6936, 2, 5, 0.77], [74, 1, 3, 1.2], [2104, 1, 3, 0.9], [4253, 1, 3, 1.09], [3575, 25, 3, 0.99], [10408, 1, 3, 1.2], [2423, 80, 3, 1.11], [12369, 1, 3, 1.2], [10411, 1, 3, 1.2], [5434, 1, 3, 0.95], [37, 1, 3, 0.82], [440, 3, 3, 1.15], [34, 1, 3, 0.87], [1414, 1, 3, 0.82], [5435, 1, 3, 0.6], [11952, 1, 3, 1.0], [2331, 1, 3, 1.2], [1274, 1, 3, 1.2], [1548, 1, 3, 1.2], [14037, 3, 4, 0.71], [2055, 1, 3, 1.2], [389, 4, 3, 0.57], [3674, 2, 3, 1.08], [12369, 3, 5, 1.25]]</t>
+  </si>
+  <si>
+    <t>[[616, 2, 4, 0.73], [615, 2, 4, 0.89], [130, 1, 3, 0.6], [990, 2, 3, 1.13], [624, 2, 4, 0.89], [151, 1, 3, 0.73], [2912, 1, 3, 1.2], [305, 2, 3, 0.96], [6935, 2, 5, 0.77], [2778, 2, 4, 1.33], [5165, 1, 3, 0.81], [7004, 1, 3, 0.63], [144, 2, 3, 0.9], [143, 2, 3, 0.9], [2775, 2, 3, 1.2], [9760, 29, 3, 1.16], [2776, 2, 3, 1.2], [159, 1, 3, 0.67], [146, 2, 3, 0.91], [3840, 1, 3, 1.2], [3576, 29, 3, 0.77], [3893, 1, 3, 0.97], [88, 10, 6, 0.49], [2424, 29, 3, 1.2], [12269, 2, 3, 1.1], [141, 2, 3, 0.78], [1504, 2, 4, 1.33], [6497, 1, 3, 1.2], [12224, 1, 3, 0.95], [1492, 1, 3, 1.2], [20252, 2, 3, 0.59], [20256, 2, 3, 0.85], [2497, 2, 3, 1.2], [3, 2, 3, 1.0], [3575, 29, 3, 0.74], [8853, 2, 4, 0.8], [2049, 3, 6, 0.52], [9, 1, 3, 0.86], [3577, 29, 3, 0.74], [3429, 15, 3, 0.86], [75, 2, 3, 1.2], [6496, 1, 3, 1.2], [6097, 29, 3, 1.2], [1413, 15, 3, 0.94], [2423, 29, 3, 1.1], [229, 1, 3, 1.17], [11426, 29, 3, 0.81], [823, 1, 3, 1.2], [1243, 2, 3, 1.05], [1413, 1, 3, 0.94], [9372, 1, 4, 0.48], [2057, 3, 4, 0.62], [13028, 3, 3, 1.2], [2050, 3, 4, 0.68], [2424, 80, 4, 1.33], [12870, 1, 3, 1.0], [2774, 2, 3, 1.2], [1413, 16, 3, 0.94], [2055, 3, 4, 0.71], [346, 1, 3, 0.98], [66, 1, 3, 1.03], [5165, 2, 5, 0.54], [2912, 2, 5, 0.95], [1414, 15, 3, 0.99], [159, 3, 5, 0.79], [6936, 2, 4, 0.67], [88, 1, 3, 0.85], [6097, 80, 3, 1.2], [2331, 1, 3, 0.98], [10149, 3, 9, 0.49], [3576, 25, 3, 0.76], [5434, 1, 3, 0.8], [5208, 3, 4, 0.45], [3429, 16, 3, 0.86], [1548, 1, 3, 1.2], [11770, 1, 3, 1.0], [247, 1, 3, 0.91], [159, 16, 3, 1.08], [8104, 1, 3, 0.45], [8286, 1, 3, 0.9], [2423, 80, 3, 1.11], [3575, 25, 3, 0.74], [74, 1, 3, 1.2], [3429, 1, 3, 0.86], [3577, 25, 3, 0.73], [1414, 16, 3, 0.99], [20258, 2, 3, 0.86], [1414, 1, 3, 0.98], [11952, 1, 3, 1.0], [66, 16, 3, 1.03], [1339, 1, 3, 1.09], [12369, 1, 3, 1.2], [286, 3, 3, 0.9], [10411, 1, 3, 1.2], [11426, 25, 3, 0.8], [10408, 1, 3, 1.2], [389, 4, 3, 0.61], [11811, 1, 4, 0.93], [1163, 3, 3, 0.54], [5435, 1, 3, 0.6]]</t>
+  </si>
+  <si>
+    <t>[[130, 1, 5, 1.28], [6935, 2, 19, 2.88], [3, 2, 7, 2.54], [151, 1, 6, 1.79], [2049, 1, 5, 1.33], [305, 2, 5, 2.03], [1492, 1, 5, 2.43], [2778, 2, 7, 2.9], [143, 2, 5, 2.14], [205, 2, 5, 1.71], [144, 2, 5, 2.12], [2049, 3, 15, 1.37], [145, 2, 5, 2.14], [2424, 29, 7, 2.45], [146, 2, 5, 2.13], [20258, 2, 5, 2.46], [75, 2, 5, 2.52], [83, 2, 5, 1.19], [6936, 2, 13, 3.21], [20252, 2, 5, 2.38], [7004, 1, 5, 1.43], [6097, 29, 5, 2.4], [159, 1, 9, 2.19], [1490, 1, 5, 2.42], [141, 2, 5, 1.7], [1504, 2, 7, 2.85], [2912, 1, 6, 2.64], [362, 2, 5, 2.29], [76, 2, 5, 2.46], [5165, 1, 5, 1.64], [6497, 1, 5, 2.39], [5005, 1, 9, 1.61], [11739, 2, 5, 1.55], [9760, 29, 5, 2.1], [12224, 1, 5, 2.01], [8853, 2, 10, 2.8], [6098, 29, 5, 2.36], [823, 1, 5, 2.39], [97, 11, 21, 1.27], [13028, 3, 5, 2.51], [88, 10, 14, 1.87], [20256, 2, 5, 2.41], [2423, 29, 5, 2.17], [79, 1, 5, 2.05], [308, 1, 7, 2.57], [74, 1, 5, 2.48], [1767, 2, 5, 1.36], [12225, 1, 5, 1.95], [2775, 2, 5, 2.5], [10148, 1, 5, 1.26], [20255, 2, 5, 2.2], [615, 2, 12, 2.68], [10149, 3, 20, 1.2], [1413, 1, 5, 1.98], [2050, 3, 7, 1.77], [229, 1, 5, 2.31], [167, 3, 5, 1.47], [1413, 15, 5, 1.97], [11454, 2, 10, 2.72], [6097, 80, 5, 2.46], [616, 2, 12, 2.51], [2054, 3, 6, 1.58], [2057, 3, 7, 1.83], [3670, 2, 7, 2.9], [2497, 2, 5, 2.5], [1766, 2, 5, 1.28], [286, 3, 5, 1.96], [167, 1, 5, 1.49], [13260, 29, 5, 2.24], [1413, 16, 5, 1.93], [1070, 2, 5, 2.34], [2776, 2, 5, 2.54], [24, 1, 5, 1.61], [6098, 80, 5, 2.27], [9372, 1, 9, 2.54], [110, 4, 5, 1.82], [2726, 3, 6, 2.17], [1080, 3, 5, 2.52], [18, 1, 5, 1.18], [9069, 1, 5, 1.21], [1070, 7, 14, 2.46], [624, 2, 12, 2.62], [974, 3, 6, 2.16], [5208, 3, 9, 1.14], [1767, 25, 5, 1.51], [2331, 1, 5, 2.37], [1163, 3, 7, 1.2], [8104, 1, 6, 1.47], [11770, 1, 7, 2.65], [9613, 1, 5, 1.22], [1087, 1, 5, 2.39], [88, 1, 5, 1.72], [11089, 1, 5, 2.35], [8677, 3, 6, 2.67], [97, 1, 5, 1.8], [110, 1, 5, 1.66], [2424, 80, 5, 2.71], [1766, 25, 5, 1.46], [10149, 1, 5, 1.97], [335, 3, 15, 1.37]]</t>
+  </si>
+  <si>
+    <t>[[130, 1, 5, 1.58], [6935, 2, 20, 2.84], [3, 2, 7, 1.75], [10529, 29, 12, 2.59], [2049, 1, 5, 1.26], [6097, 29, 6, 2.48], [1492, 1, 8, 1.8], [141, 2, 5, 1.87], [305, 2, 6, 2.05], [75, 2, 5, 2.5], [2778, 2, 7, 2.99], [83, 2, 5, 1.1], [6098, 29, 5, 2.25], [205, 2, 5, 1.8], [76, 2, 5, 2.42], [2049, 3, 14, 1.3], [2424, 29, 9, 2.49], [11737, 2, 5, 1.65], [66, 1, 5, 2.14], [10530, 29, 9, 1.83], [7004, 1, 5, 1.47], [6936, 2, 14, 2.52], [144, 2, 5, 1.74], [159, 1, 9, 1.07], [20252, 2, 5, 2.51], [206, 2, 5, 1.76], [1490, 1, 5, 1.66], [146, 2, 5, 1.73], [1776, 1, 6, 2.44], [143, 2, 5, 1.76], [413, 1, 5, 2.07], [20258, 2, 5, 2.44], [79, 1, 5, 2.43], [2423, 29, 5, 2.1], [8853, 2, 13, 3.07], [1504, 2, 8, 2.97], [145, 2, 5, 1.73], [346, 1, 5, 1.77], [10149, 3, 20, 0.87], [88, 10, 14, 1.86], [12224, 1, 5, 1.37], [308, 1, 8, 2.69], [13028, 3, 6, 2.54], [8926, 1, 6, 1.74], [5165, 1, 5, 1.6], [2912, 1, 6, 1.48], [12924, 1, 5, 0.84], [615, 2, 12, 2.67], [23, 1, 5, 1.43], [20256, 2, 5, 2.14], [1413, 1, 5, 1.85], [9760, 29, 5, 2.07], [167, 1, 5, 1.73], [167, 3, 6, 1.63], [214, 3, 14, 1.61], [6097, 80, 5, 2.45], [13260, 29, 5, 2.35], [74, 1, 5, 2.44], [6098, 80, 5, 2.28], [7036, 1, 8, 2.49], [20255, 2, 5, 2.49], [3495, 3, 21, 1.28], [1413, 15, 5, 1.85], [10149, 1, 5, 1.28], [286, 3, 5, 1.93], [2775, 2, 5, 2.52], [1703, 2, 8, 2.63], [2497, 2, 6, 2.51], [616, 2, 8, 2.63], [8104, 1, 7, 1.26], [66, 16, 5, 2.03], [11454, 2, 10, 2.65], [88, 1, 5, 1.64], [335, 3, 16, 1.83], [12225, 1, 5, 1.33], [168, 3, 7, 1.03], [1414, 1, 5, 1.89], [1413, 16, 5, 1.82], [2322, 2, 5, 2.23], [2726, 3, 6, 2.23], [3670, 2, 10, 2.1], [18, 1, 5, 1.17], [336, 15, 5, 1.52], [1414, 15, 5, 1.93], [10529, 80, 5, 2.44], [624, 2, 9, 2.56], [168, 1, 5, 0.93], [24, 1, 5, 1.61], [5208, 3, 9, 1.13], [9069, 1, 5, 1.19], [11770, 1, 6, 2.7], [2331, 1, 5, 1.9], [27, 1, 5, 1.35], [2776, 2, 5, 2.49], [8945, 1, 5, 1.85], [9613, 1, 5, 1.22], [12369, 1, 5, 2.32], [11952, 1, 7, 2.76], [14037, 3, 8, 1.35], [8677, 3, 6, 1.9]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 19, 2.72], [2778, 2, 10, 2.84], [9760, 29, 6, 2.23], [362, 2, 7, 2.18], [130, 1, 5, 1.56], [141, 2, 8, 1.79], [5165, 1, 5, 1.67], [305, 2, 6, 1.76], [8853, 2, 14, 2.82], [2775, 2, 7, 2.63], [6097, 29, 5, 2.44], [2776, 2, 7, 2.65], [2424, 29, 5, 2.42], [2912, 1, 5, 2.46], [143, 2, 7, 2.04], [3576, 29, 5, 1.44], [1492, 1, 5, 2.37], [615, 2, 6, 2.56], [361, 2, 5, 1.63], [205, 2, 5, 1.66], [159, 1, 7, 2.46], [7004, 1, 5, 1.37], [11089, 1, 9, 2.53], [616, 2, 6, 2.49], [6936, 2, 18, 2.59], [6098, 29, 5, 2.5], [3840, 1, 5, 2.31], [2423, 29, 5, 2.27], [11739, 2, 5, 1.7], [206, 2, 5, 1.59], [6097, 80, 5, 2.37], [20258, 2, 5, 2.4], [12269, 2, 5, 2.43], [6952, 1, 7, 2.47], [12224, 1, 5, 2.04], [20252, 2, 5, 2.2], [1490, 1, 5, 2.42], [11426, 29, 5, 1.59], [12271, 2, 5, 2.45], [624, 2, 5, 2.31], [6098, 80, 5, 2.26], [12870, 1, 6, 2.42], [3429, 15, 5, 1.66], [2424, 80, 5, 2.63], [3670, 2, 6, 2.43], [159, 3, 9, 2.06], [1309, 1, 5, 2.24], [2331, 1, 5, 2.33], [3, 2, 5, 2.6], [7885, 4, 5, 1.02], [11426, 25, 5, 1.53], [5165, 2, 7, 1.28], [11767, 1, 5, 2.13], [1413, 15, 5, 1.98], [8926, 1, 7, 1.82], [13028, 3, 5, 2.58], [2912, 2, 7, 2.01], [2423, 80, 5, 2.54], [2497, 2, 5, 2.43], [1801, 1, 5, 2.39], [3429, 16, 5, 1.7], [159, 16, 5, 2.06], [1413, 1, 5, 2.03], [8283, 1, 5, 2.34], [3016, 68, 5, 1.46], [75, 2, 5, 2.46], [20256, 2, 5, 2.31], [5005, 1, 5, 1.71], [12764, 1, 5, 1.88], [3429, 1, 5, 1.96], [1413, 16, 5, 1.96], [5208, 3, 7, 1.01], [8286, 1, 5, 2.64], [12369, 1, 5, 2.37], [2438, 1, 5, 1.88], [12369, 3, 8, 2.62], [11808, 1, 6, 2.53], [14037, 3, 6, 1.14], [11164, 1, 5, 1.99], [10408, 1, 5, 2.55], [8286, 2, 6, 2.42], [1163, 3, 6, 1.55], [432, 3, 6, 1.47], [20255, 2, 5, 1.98], [2160, 68, 5, 1.82], [11586, 1, 9, 2.54], [9069, 1, 5, 1.18], [432, 1, 5, 1.54], [8283, 2, 6, 2.34], [3673, 2, 5, 2.24], [3016, 3, 5, 1.55], [5209, 3, 6, 0.9], [8285, 1, 5, 2.6], [12764, 2, 10, 2.6], [10407, 1, 5, 2.26], [74, 1, 5, 2.3], [8274, 3, 5, 1.17], [8600, 1, 5, 2.41], [5005, 3, 6, 1.56], [8635, 3, 5, 1.18]]</t>
+  </si>
+  <si>
+    <t>[[130, 1, 5, 1.65], [6935, 2, 24, 2.71], [305, 2, 8, 2.06], [2778, 2, 11, 3.21], [141, 2, 6, 1.39], [145, 2, 7, 1.8], [143, 2, 7, 1.81], [146, 2, 6, 2.08], [615, 2, 7, 2.51], [2424, 29, 6, 2.42], [1504, 2, 9, 2.96], [75, 2, 7, 2.65], [6497, 1, 6, 2.64], [2423, 29, 5, 2.24], [205, 2, 5, 1.61], [8853, 2, 12, 2.92], [159, 1, 12, 2.67], [2776, 2, 6, 2.51], [9507, 1, 5, 1.16], [2912, 1, 6, 2.54], [3, 2, 7, 2.71], [1492, 1, 5, 2.44], [2422, 29, 5, 2.38], [1339, 1, 6, 2.2], [9507, 3, 5, 1.16], [2049, 3, 13, 1.38], [5165, 1, 5, 1.61], [2497, 2, 7, 2.67], [6494, 1, 9, 1.6], [20252, 2, 6, 1.65], [3670, 2, 9, 2.71], [20256, 2, 5, 2.14], [2774, 2, 7, 2.81], [1413, 15, 5, 2.04], [1413, 1, 5, 2.02], [1413, 16, 5, 1.99], [2424, 80, 6, 2.37], [2423, 80, 6, 2.01], [6936, 2, 14, 2.78], [3674, 2, 9, 2.56], [11089, 1, 7, 2.77], [74, 1, 5, 2.43], [6952, 1, 6, 2.43], [9126, 1, 5, 1.74], [1163, 3, 6, 1.23], [8283, 1, 5, 2.08], [9124, 1, 5, 1.74], [2050, 3, 7, 1.74], [71, 1, 5, 2.04], [8286, 1, 5, 2.11], [2422, 80, 5, 2.52], [114, 3, 5, 2.01], [2331, 1, 5, 1.96], [13260, 29, 5, 2.22], [2050, 1, 10, 1.66], [2326, 2, 5, 1.5], [2055, 3, 6, 1.57], [11954, 1, 7, 2.16], [247, 1, 5, 1.75], [11158, 1, 24, 2.22], [159, 16, 5, 2.1], [159, 3, 9, 2.04], [2322, 2, 5, 1.43], [12764, 1, 5, 2.0], [1886, 2, 8, 2.57], [14037, 3, 6, 1.2], [186, 3, 12, 1.02], [10411, 1, 5, 2.16], [7629, 1, 5, 2.01], [1339, 3, 19, 2.29], [335, 3, 19, 1.68], [11677, 1, 12, 2.21], [973, 1, 5, 2.0], [6359, 10, 17, 1.75], [71, 15, 5, 1.9], [71, 16, 5, 1.92], [20927, 1, 5, 1.71], [114, 1, 5, 1.81], [1548, 1, 5, 2.38], [10411, 10, 9, 1.91], [10406, 1, 5, 1.72], [8285, 1, 5, 1.93], [8283, 2, 6, 1.86], [3016, 68, 5, 2.38], [5208, 3, 7, 1.2], [13023, 1, 5, 2.29], [3257, 4, 5, 1.27], [19878, 1, 5, 1.06], [1895, 3, 6, 1.62], [5165, 2, 7, 1.29], [2436, 4, 5, 1.08], [2912, 2, 7, 2.34], [8286, 2, 6, 1.85], [8599, 1, 5, 2.28], [11808, 1, 6, 2.7], [12764, 2, 7, 1.76], [1801, 1, 5, 2.48], [432, 3, 6, 2.25], [8898, 3, 6, 2.27], [8285, 2, 6, 1.93]]</t>
+  </si>
+  <si>
+    <t>[[130, 1, 5, 1.39], [615, 2, 8, 2.13], [6935, 2, 13, 2.66], [616, 2, 7, 2.2], [2912, 1, 7, 2.6], [305, 2, 5, 1.87], [151, 1, 5, 1.57], [2778, 2, 6, 2.53], [5165, 1, 5, 1.67], [144, 2, 5, 2.13], [7004, 1, 5, 1.84], [1504, 2, 7, 2.89], [205, 2, 5, 1.64], [624, 2, 5, 1.87], [3893, 1, 5, 2.38], [146, 2, 5, 2.15], [6497, 1, 5, 2.45], [1492, 1, 5, 2.42], [141, 2, 5, 1.65], [3576, 29, 5, 2.0], [12269, 2, 5, 2.42], [159, 1, 6, 2.19], [9760, 29, 6, 2.51], [11737, 2, 5, 1.62], [3889, 1, 5, 2.38], [3891, 1, 5, 2.36], [88, 10, 17, 1.86], [2049, 1, 5, 1.27], [2775, 2, 5, 2.54], [3577, 29, 5, 1.64], [12224, 1, 5, 2.0], [2497, 2, 5, 2.52], [3840, 1, 7, 2.73], [2776, 2, 5, 2.49], [2049, 3, 10, 1.06], [13028, 3, 5, 2.47], [12271, 2, 5, 2.4], [11739, 2, 5, 1.6], [6496, 1, 5, 2.39], [3, 2, 5, 2.47], [75, 2, 5, 2.46], [3575, 29, 5, 1.98], [61, 3, 6, 1.19], [2423, 29, 5, 2.17], [20252, 2, 5, 2.44], [11426, 29, 5, 1.63], [12212, 29, 5, 1.81], [1413, 15, 5, 1.52], [2774, 2, 5, 2.49], [6494, 1, 6, 1.72], [2050, 3, 7, 2.72], [1413, 1, 5, 1.55], [214, 3, 12, 1.32], [33, 1, 5, 1.82], [20256, 2, 5, 2.4], [159, 3, 8, 1.99], [88, 1, 5, 1.67], [336, 15, 5, 2.31], [2055, 3, 6, 2.41], [5165, 2, 9, 1.76], [346, 1, 5, 1.89], [9372, 1, 10, 1.85], [2104, 3, 9, 1.4], [8853, 2, 10, 2.76], [3577, 25, 5, 1.71], [3670, 2, 5, 2.5], [2912, 2, 10, 3.12], [159, 16, 5, 2.1], [3576, 25, 5, 2.15], [1414, 15, 5, 1.61], [5208, 3, 9, 1.67], [1413, 16, 5, 1.5], [1309, 1, 5, 2.22], [21793, 1, 8, 2.34], [286, 3, 5, 1.23], [11769, 1, 5, 2.43], [6936, 2, 13, 3.16], [74, 1, 5, 2.41], [2104, 1, 5, 1.75], [4253, 1, 5, 2.18], [3575, 25, 5, 2.0], [10408, 1, 5, 2.43], [2423, 80, 5, 2.41], [12369, 1, 5, 2.37], [10411, 1, 5, 2.46], [5434, 1, 5, 1.88], [37, 1, 5, 1.67], [440, 3, 5, 2.41], [34, 1, 5, 1.73], [1414, 1, 5, 1.6], [5435, 1, 5, 1.18], [11952, 1, 6, 2.49], [2331, 1, 5, 2.45], [1274, 1, 5, 2.39], [1548, 1, 5, 2.42], [14037, 3, 6, 1.32], [2055, 1, 5, 2.48], [389, 4, 5, 1.23], [3674, 2, 5, 2.22], [12369, 3, 8, 2.72]]</t>
+  </si>
+  <si>
+    <t>[[616, 2, 11, 2.7], [615, 2, 9, 2.6], [130, 1, 5, 1.23], [990, 2, 5, 2.35], [624, 2, 9, 2.66], [151, 1, 5, 1.53], [2912, 1, 5, 2.36], [305, 2, 5, 2.0], [6935, 2, 13, 2.93], [2778, 2, 6, 2.51], [5165, 1, 5, 1.58], [7004, 1, 5, 1.28], [144, 2, 5, 1.82], [143, 2, 5, 1.86], [2775, 2, 5, 2.51], [9760, 29, 5, 2.29], [2776, 2, 5, 2.48], [159, 1, 8, 2.21], [146, 2, 5, 1.84], [3840, 1, 5, 2.38], [3576, 29, 5, 1.51], [3893, 1, 5, 2.01], [88, 10, 14, 1.84], [2424, 29, 5, 2.35], [12269, 2, 5, 2.25], [141, 2, 5, 1.6], [1504, 2, 6, 2.46], [6497, 1, 5, 2.43], [12224, 1, 5, 2.0], [1492, 1, 5, 2.42], [20252, 2, 9, 2.42], [20256, 2, 7, 2.59], [2497, 2, 5, 2.44], [3, 2, 6, 2.82], [3575, 29, 5, 1.56], [8853, 2, 10, 2.51], [2049, 3, 10, 1.06], [9, 1, 7, 2.51], [3577, 29, 5, 1.53], [3429, 15, 5, 1.67], [75, 2, 5, 2.53], [6496, 1, 5, 2.41], [6097, 29, 5, 2.41], [1413, 15, 5, 1.86], [2423, 29, 5, 2.26], [229, 1, 5, 2.33], [11426, 29, 5, 1.65], [823, 1, 5, 2.37], [1243, 2, 5, 2.17], [1413, 1, 5, 1.81], [9372, 1, 12, 1.84], [2057, 3, 7, 1.49], [13028, 3, 5, 2.45], [2050, 3, 6, 1.25], [2424, 80, 6, 2.49], [12870, 1, 6, 2.54], [2774, 2, 5, 2.37], [1413, 16, 5, 1.82], [2055, 3, 6, 1.29], [346, 1, 5, 1.96], [66, 1, 5, 2.12], [5165, 2, 10, 1.7], [2912, 2, 10, 3.01], [1414, 15, 5, 1.94], [159, 3, 9, 2.08], [6936, 2, 12, 2.8], [88, 1, 5, 1.71], [6097, 80, 5, 2.44], [2331, 1, 5, 1.9], [10149, 3, 15, 1.16], [3576, 25, 5, 1.61], [5434, 1, 5, 1.58], [5208, 3, 8, 1.26], [3429, 16, 5, 1.66], [1548, 1, 5, 2.37], [11770, 1, 6, 2.55], [247, 1, 5, 1.8], [159, 16, 5, 2.09], [8104, 1, 9, 1.69], [8286, 1, 5, 1.76], [2423, 80, 5, 2.4], [3575, 25, 5, 1.6], [74, 1, 5, 2.48], [3429, 1, 5, 1.68], [3577, 25, 5, 1.49], [1414, 16, 5, 1.91], [20258, 2, 7, 2.64], [1414, 1, 5, 1.91], [11952, 1, 6, 2.54], [66, 16, 5, 1.98], [1339, 1, 5, 2.13], [12369, 1, 5, 2.58], [286, 3, 5, 1.83], [10411, 1, 5, 2.33], [11426, 25, 5, 1.7], [10408, 1, 5, 2.3], [389, 4, 5, 1.28], [11811, 1, 6, 1.77], [1163, 3, 5, 1.09], [5435, 1, 5, 1.17]]</t>
   </si>
 </sst>
 </file>

--- a/QD_upload.xlsx
+++ b/QD_upload.xlsx
@@ -52,46 +52,46 @@
     <t>Delta WestQD</t>
   </si>
   <si>
-    <t>21/10/2025 17:31</t>
-  </si>
-  <si>
-    <t>21/10/2025 00:59</t>
-  </si>
-  <si>
-    <t>[[130, 1, 3, 0.62], [6935, 2, 8, 0.84], [3, 2, 4, 1.14], [151, 1, 3, 0.61], [2049, 1, 3, 0.67], [305, 2, 3, 0.98], [1492, 1, 3, 1.2], [2778, 2, 4, 1.14], [143, 2, 3, 1.04], [205, 2, 3, 0.8], [144, 2, 3, 1.04], [2049, 3, 8, 0.47], [145, 2, 3, 1.04], [2424, 29, 3, 0.86], [146, 2, 3, 1.05], [20258, 2, 3, 1.2], [75, 2, 3, 1.2], [83, 2, 3, 0.6], [6936, 2, 5, 0.77], [20252, 2, 3, 1.14], [7004, 1, 3, 0.7], [6097, 29, 3, 1.2], [159, 1, 3, 0.6], [1490, 1, 3, 1.2], [141, 2, 3, 0.8], [1504, 2, 4, 1.14], [2912, 1, 3, 1.0], [362, 2, 3, 1.08], [76, 2, 3, 1.2], [5165, 1, 3, 0.83], [6497, 1, 3, 1.2], [5005, 1, 3, 0.4], [11739, 2, 3, 0.77], [9760, 29, 3, 1.05], [12224, 1, 3, 0.95], [8853, 2, 4, 0.8], [6098, 29, 3, 1.15], [823, 1, 3, 1.2], [97, 11, 15, 0.75], [13028, 3, 3, 1.2], [88, 10, 6, 0.49], [20256, 2, 3, 1.2], [2423, 29, 3, 1.1], [79, 1, 3, 1.03], [308, 1, 4, 1.14], [74, 1, 3, 1.2], [1767, 2, 3, 0.66], [12225, 1, 3, 0.95], [2775, 2, 3, 1.2], [10148, 1, 3, 0.64], [20255, 2, 3, 1.05], [615, 2, 4, 0.67], [10149, 3, 14, 0.7], [1413, 1, 3, 0.99], [2050, 3, 4, 0.72], [229, 1, 3, 1.16], [167, 3, 3, 0.71], [1413, 15, 3, 0.99], [11454, 2, 5, 1.0], [6097, 80, 3, 1.2], [616, 2, 4, 0.67], [2054, 3, 4, 0.85], [2057, 3, 4, 0.73], [3670, 2, 4, 1.14], [2497, 2, 3, 1.2], [1766, 2, 3, 0.63], [286, 3, 3, 0.9], [167, 1, 3, 0.72], [13260, 29, 3, 1.12], [1413, 16, 3, 0.99], [1070, 2, 3, 1.2], [2776, 2, 3, 1.2], [24, 1, 3, 0.82], [6098, 80, 3, 1.15], [9372, 1, 3, 0.67], [110, 4, 3, 0.83], [2726, 3, 4, 1.09], [1080, 3, 3, 1.2], [18, 1, 3, 0.6], [9069, 1, 3, 0.6], [1070, 7, 8, 0.85], [624, 2, 4, 0.67], [974, 3, 4, 1.12], [5208, 3, 4, 0.34], [1767, 25, 3, 0.66], [2331, 1, 3, 1.2], [1163, 3, 4, 0.46], [8104, 1, 3, 0.59], [11770, 1, 3, 0.86], [9613, 1, 3, 0.62], [1087, 1, 3, 1.2], [88, 1, 3, 0.85], [11089, 1, 3, 1.2], [8677, 3, 4, 1.33], [97, 1, 3, 0.94], [110, 1, 3, 0.84], [2424, 80, 3, 1.2], [1766, 25, 3, 0.63], [10149, 1, 3, 1.01], [335, 3, 9, 0.55]]</t>
-  </si>
-  <si>
-    <t>[[130, 1, 3, 0.77], [6935, 2, 8, 0.8], [3, 2, 4, 0.76], [10529, 29, 4, 0.67], [2049, 1, 3, 0.66], [6097, 29, 3, 1.0], [1492, 1, 3, 0.48], [141, 2, 3, 0.87], [305, 2, 3, 0.77], [75, 2, 3, 1.2], [2778, 2, 4, 1.14], [83, 2, 3, 0.56], [6098, 29, 3, 1.15], [205, 2, 3, 0.86], [76, 2, 3, 1.19], [2049, 3, 8, 0.49], [2424, 29, 3, 0.67], [11737, 2, 3, 0.82], [66, 1, 3, 1.03], [10530, 29, 3, 0.49], [7004, 1, 3, 0.72], [6936, 2, 6, 0.86], [144, 2, 3, 0.85], [159, 1, 3, 0.29], [20252, 2, 3, 1.2], [206, 2, 3, 0.86], [1490, 1, 3, 0.81], [146, 2, 3, 0.86], [1776, 1, 4, 1.33], [143, 2, 3, 0.86], [413, 1, 3, 1.03], [20258, 2, 3, 1.2], [79, 1, 3, 1.19], [2423, 29, 3, 1.1], [8853, 2, 5, 0.77], [1504, 2, 4, 1.0], [145, 2, 3, 0.85], [346, 1, 3, 0.87], [10149, 3, 14, 0.51], [88, 10, 6, 0.49], [12224, 1, 3, 0.66], [308, 1, 3, 0.75], [13028, 3, 4, 1.33], [8926, 1, 3, 0.62], [5165, 1, 3, 0.83], [2912, 1, 3, 0.58], [12924, 1, 3, 0.42], [615, 2, 4, 0.67], [23, 1, 3, 0.69], [20256, 2, 3, 1.06], [1413, 1, 3, 0.93], [9760, 29, 3, 1.05], [167, 1, 3, 0.87], [167, 3, 4, 0.87], [214, 3, 9, 0.66], [6097, 80, 3, 1.2], [13260, 29, 3, 1.14], [74, 1, 3, 1.2], [6098, 80, 3, 1.15], [7036, 1, 3, 0.75], [20255, 2, 3, 1.19], [3495, 3, 15, 0.65], [1413, 15, 3, 0.93], [10149, 1, 3, 0.65], [286, 3, 3, 0.9], [2775, 2, 3, 1.2], [1703, 2, 3, 0.75], [2497, 2, 4, 1.33], [616, 2, 3, 0.75], [8104, 1, 3, 0.44], [66, 16, 3, 1.03], [11454, 2, 5, 1.0], [88, 1, 3, 0.85], [335, 3, 9, 0.65], [12225, 1, 3, 0.66], [168, 3, 4, 0.43], [1414, 1, 3, 0.97], [1413, 16, 3, 0.93], [2322, 2, 3, 1.06], [2726, 3, 4, 1.16], [3670, 2, 4, 0.56], [18, 1, 3, 0.6], [336, 15, 3, 0.77], [1414, 15, 3, 0.97], [10529, 80, 3, 1.2], [624, 2, 4, 0.89], [168, 1, 3, 0.49], [24, 1, 3, 0.82], [5208, 3, 4, 0.34], [9069, 1, 3, 0.6], [11770, 1, 3, 1.0], [2331, 1, 3, 0.96], [27, 1, 3, 0.68], [2776, 2, 3, 1.2], [8945, 1, 3, 0.92], [9613, 1, 3, 0.62], [12369, 1, 3, 1.2], [11952, 1, 3, 0.86], [14037, 3, 4, 0.49], [8677, 3, 4, 0.92]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 8, 0.84], [2778, 2, 4, 0.8], [9760, 29, 3, 0.85], [362, 2, 4, 1.0], [130, 1, 3, 0.78], [141, 2, 4, 0.67], [5165, 1, 3, 0.83], [305, 2, 4, 0.96], [8853, 2, 5, 0.71], [2775, 2, 4, 1.14], [6097, 29, 3, 1.2], [2776, 2, 4, 1.14], [2424, 29, 3, 1.2], [2912, 1, 3, 1.2], [143, 2, 4, 0.92], [3576, 29, 3, 0.72], [1492, 1, 3, 1.2], [615, 2, 3, 1.0], [361, 2, 3, 0.82], [205, 2, 3, 0.8], [159, 1, 3, 0.77], [7004, 1, 3, 0.69], [11089, 1, 3, 0.67], [616, 2, 3, 1.0], [6936, 2, 6, 0.67], [6098, 29, 3, 1.15], [3840, 1, 3, 1.2], [2423, 29, 3, 1.1], [11739, 2, 3, 0.82], [206, 2, 3, 0.8], [6097, 80, 3, 1.2], [20258, 2, 3, 1.2], [12269, 2, 3, 1.2], [6952, 1, 4, 1.14], [12224, 1, 3, 0.98], [20252, 2, 3, 1.11], [1490, 1, 3, 1.2], [11426, 29, 3, 0.74], [12271, 2, 3, 1.2], [624, 2, 3, 1.2], [6098, 80, 3, 1.15], [12870, 1, 3, 1.0], [3429, 15, 3, 0.86], [2424, 80, 3, 1.2], [3670, 2, 4, 1.33], [159, 3, 5, 0.79], [1309, 1, 3, 1.12], [2331, 1, 3, 1.2], [3, 2, 3, 1.2], [7885, 4, 3, 0.5], [11426, 25, 3, 0.73], [5165, 2, 5, 0.77], [11767, 1, 3, 1.06], [1413, 15, 3, 1.01], [8926, 1, 3, 0.58], [13028, 3, 3, 1.2], [2912, 2, 5, 1.24], [2423, 80, 3, 1.11], [2497, 2, 3, 1.2], [1801, 1, 3, 1.2], [3429, 16, 3, 0.87], [159, 16, 3, 1.08], [1413, 1, 3, 1.02], [8283, 1, 3, 1.2], [3016, 68, 3, 0.75], [75, 2, 3, 1.2], [20256, 2, 3, 1.2], [5005, 1, 3, 0.76], [12764, 1, 3, 0.97], [3429, 1, 3, 0.87], [1413, 16, 3, 1.02], [5208, 3, 4, 0.41], [8286, 1, 3, 1.2], [12369, 1, 3, 1.2], [2438, 1, 3, 0.94], [12369, 3, 5, 1.25], [11808, 1, 4, 1.33], [14037, 3, 4, 0.61], [11164, 1, 3, 1.01], [10408, 1, 3, 1.2], [8286, 2, 4, 1.26], [1163, 3, 4, 0.85], [432, 3, 4, 0.79], [20255, 2, 3, 1.03], [2160, 68, 3, 0.93], [11586, 1, 4, 0.89], [9069, 1, 3, 0.6], [432, 1, 3, 0.81], [8283, 2, 4, 1.29], [3673, 2, 3, 1.2], [3016, 3, 3, 0.75], [5209, 3, 4, 0.47], [8285, 1, 3, 1.2], [12764, 2, 4, 0.59], [10407, 1, 3, 1.12], [74, 1, 3, 1.2], [8274, 3, 3, 0.56], [8600, 1, 3, 1.2], [5005, 3, 4, 0.75], [8635, 3, 3, 0.6]]</t>
-  </si>
-  <si>
-    <t>[[130, 1, 3, 0.81], [6935, 2, 8, 0.67], [305, 2, 4, 0.79], [2778, 2, 4, 0.73], [141, 2, 4, 0.75], [145, 2, 4, 0.82], [143, 2, 4, 0.82], [146, 2, 3, 0.76], [615, 2, 4, 1.14], [2424, 29, 3, 1.0], [1504, 2, 4, 0.89], [75, 2, 4, 1.14], [6497, 1, 3, 1.0], [2423, 29, 3, 1.1], [205, 2, 3, 0.77], [8853, 2, 4, 0.67], [159, 1, 4, 0.6], [2776, 2, 4, 1.33], [9507, 1, 3, 0.56], [2912, 1, 3, 1.0], [3, 2, 4, 1.14], [1492, 1, 3, 1.2], [2422, 29, 3, 1.2], [1339, 1, 3, 0.84], [9507, 3, 3, 0.55], [2049, 3, 6, 0.4], [5165, 1, 3, 0.83], [2497, 2, 4, 1.14], [6494, 1, 3, 0.41], [20252, 2, 3, 0.6], [3670, 2, 4, 0.76], [20256, 2, 3, 1.06], [2774, 2, 4, 1.14], [1413, 15, 3, 1.03], [1413, 1, 3, 1.03], [1413, 16, 3, 1.02], [2424, 80, 4, 1.33], [2423, 80, 4, 1.11], [6936, 2, 5, 0.71], [3674, 2, 4, 0.79], [11089, 1, 3, 0.86], [74, 1, 3, 1.2], [6952, 1, 4, 1.33], [9126, 1, 3, 0.91], [1163, 3, 4, 0.63], [8283, 1, 3, 1.03], [9124, 1, 3, 0.87], [2050, 3, 4, 0.72], [71, 1, 3, 0.99], [8286, 1, 3, 1.02], [2422, 80, 3, 1.2], [114, 3, 3, 0.92], [2331, 1, 3, 1.0], [13260, 29, 3, 1.12], [2050, 1, 4, 0.53], [2326, 2, 3, 0.7], [2055, 3, 4, 0.84], [11954, 1, 3, 0.71], [247, 1, 3, 0.9], [11158, 1, 8, 0.54], [159, 16, 3, 1.08], [159, 3, 5, 0.8], [2322, 2, 3, 0.72], [12764, 1, 3, 1.08], [1886, 2, 3, 0.58], [14037, 3, 4, 0.59], [186, 3, 8, 0.53], [10411, 1, 3, 1.04], [7629, 1, 3, 0.97], [1339, 3, 9, 0.65], [335, 3, 9, 0.46], [11677, 1, 4, 0.51], [973, 1, 3, 0.95], [6359, 10, 9, 0.49], [71, 15, 3, 0.97], [71, 16, 3, 0.99], [20927, 1, 3, 0.83], [114, 1, 3, 0.92], [1548, 1, 3, 1.2], [10411, 10, 6, 0.71], [10406, 1, 3, 0.89], [8285, 1, 3, 1.05], [8283, 2, 4, 1.01], [3016, 68, 3, 1.2], [5208, 3, 4, 0.49], [13023, 1, 3, 1.2], [3257, 4, 3, 0.66], [19878, 1, 3, 0.58], [1895, 3, 4, 0.83], [5165, 2, 5, 0.76], [2436, 4, 3, 0.56], [2912, 2, 5, 1.33], [8286, 2, 4, 1.01], [8599, 1, 3, 1.2], [11808, 1, 4, 1.33], [12764, 2, 5, 0.87], [1801, 1, 3, 1.2], [432, 3, 4, 1.17], [8898, 3, 4, 1.33], [8285, 2, 4, 1.04]]</t>
-  </si>
-  <si>
-    <t>[[130, 1, 3, 0.67], [615, 2, 4, 0.78], [6935, 2, 6, 0.92], [616, 2, 3, 0.7], [2912, 1, 3, 0.86], [305, 2, 3, 0.92], [151, 1, 3, 0.73], [2778, 2, 4, 1.33], [5165, 1, 3, 0.83], [144, 2, 3, 1.06], [7004, 1, 3, 0.92], [1504, 2, 4, 1.14], [205, 2, 3, 0.78], [624, 2, 3, 0.93], [3893, 1, 3, 1.15], [146, 2, 3, 1.07], [6497, 1, 3, 1.2], [1492, 1, 3, 1.2], [141, 2, 3, 0.8], [3576, 29, 3, 1.01], [12269, 2, 3, 1.2], [159, 1, 3, 0.9], [9760, 29, 3, 1.0], [11737, 2, 3, 0.79], [3889, 1, 3, 1.15], [3891, 1, 3, 1.15], [88, 10, 8, 0.56], [2049, 1, 3, 0.65], [2775, 2, 3, 1.2], [3577, 29, 3, 0.83], [12224, 1, 3, 0.95], [2497, 2, 3, 1.2], [3840, 1, 3, 0.86], [2776, 2, 3, 1.2], [2049, 3, 6, 0.52], [13028, 3, 3, 1.2], [12271, 2, 3, 1.2], [11739, 2, 3, 0.82], [6496, 1, 3, 1.2], [3, 2, 3, 1.2], [75, 2, 3, 1.2], [3575, 29, 3, 0.98], [61, 3, 4, 0.65], [2423, 29, 3, 1.1], [20252, 2, 3, 1.2], [11426, 29, 3, 0.81], [12212, 29, 3, 0.88], [1413, 15, 3, 0.77], [2774, 2, 3, 1.2], [6494, 1, 3, 0.69], [2050, 3, 4, 1.14], [1413, 1, 3, 0.78], [214, 3, 8, 0.73], [33, 1, 3, 0.88], [20256, 2, 3, 1.2], [159, 3, 5, 0.83], [88, 1, 3, 0.85], [336, 15, 3, 1.18], [2055, 3, 4, 1.33], [5165, 2, 5, 0.61], [346, 1, 3, 0.94], [9372, 1, 4, 0.61], [2104, 3, 6, 0.62], [8853, 2, 4, 0.8], [3577, 25, 3, 0.83], [3670, 2, 3, 1.2], [2912, 2, 5, 0.93], [159, 16, 3, 1.08], [3576, 25, 3, 1.01], [1414, 15, 3, 0.81], [5208, 3, 4, 0.54], [1413, 16, 3, 0.78], [1309, 1, 3, 1.12], [21793, 1, 4, 1.0], [286, 3, 3, 0.58], [11769, 1, 3, 1.16], [6936, 2, 5, 0.77], [74, 1, 3, 1.2], [2104, 1, 3, 0.9], [4253, 1, 3, 1.09], [3575, 25, 3, 0.99], [10408, 1, 3, 1.2], [2423, 80, 3, 1.11], [12369, 1, 3, 1.2], [10411, 1, 3, 1.2], [5434, 1, 3, 0.95], [37, 1, 3, 0.82], [440, 3, 3, 1.15], [34, 1, 3, 0.87], [1414, 1, 3, 0.82], [5435, 1, 3, 0.6], [11952, 1, 3, 1.0], [2331, 1, 3, 1.2], [1274, 1, 3, 1.2], [1548, 1, 3, 1.2], [14037, 3, 4, 0.71], [2055, 1, 3, 1.2], [389, 4, 3, 0.57], [3674, 2, 3, 1.08], [12369, 3, 5, 1.25]]</t>
-  </si>
-  <si>
-    <t>[[616, 2, 4, 0.73], [615, 2, 4, 0.89], [130, 1, 3, 0.6], [990, 2, 3, 1.13], [624, 2, 4, 0.89], [151, 1, 3, 0.73], [2912, 1, 3, 1.2], [305, 2, 3, 0.96], [6935, 2, 5, 0.77], [2778, 2, 4, 1.33], [5165, 1, 3, 0.81], [7004, 1, 3, 0.63], [144, 2, 3, 0.9], [143, 2, 3, 0.9], [2775, 2, 3, 1.2], [9760, 29, 3, 1.16], [2776, 2, 3, 1.2], [159, 1, 3, 0.67], [146, 2, 3, 0.91], [3840, 1, 3, 1.2], [3576, 29, 3, 0.77], [3893, 1, 3, 0.97], [88, 10, 6, 0.49], [2424, 29, 3, 1.2], [12269, 2, 3, 1.1], [141, 2, 3, 0.78], [1504, 2, 4, 1.33], [6497, 1, 3, 1.2], [12224, 1, 3, 0.95], [1492, 1, 3, 1.2], [20252, 2, 3, 0.59], [20256, 2, 3, 0.85], [2497, 2, 3, 1.2], [3, 2, 3, 1.0], [3575, 29, 3, 0.74], [8853, 2, 4, 0.8], [2049, 3, 6, 0.52], [9, 1, 3, 0.86], [3577, 29, 3, 0.74], [3429, 15, 3, 0.86], [75, 2, 3, 1.2], [6496, 1, 3, 1.2], [6097, 29, 3, 1.2], [1413, 15, 3, 0.94], [2423, 29, 3, 1.1], [229, 1, 3, 1.17], [11426, 29, 3, 0.81], [823, 1, 3, 1.2], [1243, 2, 3, 1.05], [1413, 1, 3, 0.94], [9372, 1, 4, 0.48], [2057, 3, 4, 0.62], [13028, 3, 3, 1.2], [2050, 3, 4, 0.68], [2424, 80, 4, 1.33], [12870, 1, 3, 1.0], [2774, 2, 3, 1.2], [1413, 16, 3, 0.94], [2055, 3, 4, 0.71], [346, 1, 3, 0.98], [66, 1, 3, 1.03], [5165, 2, 5, 0.54], [2912, 2, 5, 0.95], [1414, 15, 3, 0.99], [159, 3, 5, 0.79], [6936, 2, 4, 0.67], [88, 1, 3, 0.85], [6097, 80, 3, 1.2], [2331, 1, 3, 0.98], [10149, 3, 9, 0.49], [3576, 25, 3, 0.76], [5434, 1, 3, 0.8], [5208, 3, 4, 0.45], [3429, 16, 3, 0.86], [1548, 1, 3, 1.2], [11770, 1, 3, 1.0], [247, 1, 3, 0.91], [159, 16, 3, 1.08], [8104, 1, 3, 0.45], [8286, 1, 3, 0.9], [2423, 80, 3, 1.11], [3575, 25, 3, 0.74], [74, 1, 3, 1.2], [3429, 1, 3, 0.86], [3577, 25, 3, 0.73], [1414, 16, 3, 0.99], [20258, 2, 3, 0.86], [1414, 1, 3, 0.98], [11952, 1, 3, 1.0], [66, 16, 3, 1.03], [1339, 1, 3, 1.09], [12369, 1, 3, 1.2], [286, 3, 3, 0.9], [10411, 1, 3, 1.2], [11426, 25, 3, 0.8], [10408, 1, 3, 1.2], [389, 4, 3, 0.61], [11811, 1, 4, 0.93], [1163, 3, 3, 0.54], [5435, 1, 3, 0.6]]</t>
-  </si>
-  <si>
-    <t>[[130, 1, 5, 1.28], [6935, 2, 19, 2.88], [3, 2, 7, 2.54], [151, 1, 6, 1.79], [2049, 1, 5, 1.33], [305, 2, 5, 2.03], [1492, 1, 5, 2.43], [2778, 2, 7, 2.9], [143, 2, 5, 2.14], [205, 2, 5, 1.71], [144, 2, 5, 2.12], [2049, 3, 15, 1.37], [145, 2, 5, 2.14], [2424, 29, 7, 2.45], [146, 2, 5, 2.13], [20258, 2, 5, 2.46], [75, 2, 5, 2.52], [83, 2, 5, 1.19], [6936, 2, 13, 3.21], [20252, 2, 5, 2.38], [7004, 1, 5, 1.43], [6097, 29, 5, 2.4], [159, 1, 9, 2.19], [1490, 1, 5, 2.42], [141, 2, 5, 1.7], [1504, 2, 7, 2.85], [2912, 1, 6, 2.64], [362, 2, 5, 2.29], [76, 2, 5, 2.46], [5165, 1, 5, 1.64], [6497, 1, 5, 2.39], [5005, 1, 9, 1.61], [11739, 2, 5, 1.55], [9760, 29, 5, 2.1], [12224, 1, 5, 2.01], [8853, 2, 10, 2.8], [6098, 29, 5, 2.36], [823, 1, 5, 2.39], [97, 11, 21, 1.27], [13028, 3, 5, 2.51], [88, 10, 14, 1.87], [20256, 2, 5, 2.41], [2423, 29, 5, 2.17], [79, 1, 5, 2.05], [308, 1, 7, 2.57], [74, 1, 5, 2.48], [1767, 2, 5, 1.36], [12225, 1, 5, 1.95], [2775, 2, 5, 2.5], [10148, 1, 5, 1.26], [20255, 2, 5, 2.2], [615, 2, 12, 2.68], [10149, 3, 20, 1.2], [1413, 1, 5, 1.98], [2050, 3, 7, 1.77], [229, 1, 5, 2.31], [167, 3, 5, 1.47], [1413, 15, 5, 1.97], [11454, 2, 10, 2.72], [6097, 80, 5, 2.46], [616, 2, 12, 2.51], [2054, 3, 6, 1.58], [2057, 3, 7, 1.83], [3670, 2, 7, 2.9], [2497, 2, 5, 2.5], [1766, 2, 5, 1.28], [286, 3, 5, 1.96], [167, 1, 5, 1.49], [13260, 29, 5, 2.24], [1413, 16, 5, 1.93], [1070, 2, 5, 2.34], [2776, 2, 5, 2.54], [24, 1, 5, 1.61], [6098, 80, 5, 2.27], [9372, 1, 9, 2.54], [110, 4, 5, 1.82], [2726, 3, 6, 2.17], [1080, 3, 5, 2.52], [18, 1, 5, 1.18], [9069, 1, 5, 1.21], [1070, 7, 14, 2.46], [624, 2, 12, 2.62], [974, 3, 6, 2.16], [5208, 3, 9, 1.14], [1767, 25, 5, 1.51], [2331, 1, 5, 2.37], [1163, 3, 7, 1.2], [8104, 1, 6, 1.47], [11770, 1, 7, 2.65], [9613, 1, 5, 1.22], [1087, 1, 5, 2.39], [88, 1, 5, 1.72], [11089, 1, 5, 2.35], [8677, 3, 6, 2.67], [97, 1, 5, 1.8], [110, 1, 5, 1.66], [2424, 80, 5, 2.71], [1766, 25, 5, 1.46], [10149, 1, 5, 1.97], [335, 3, 15, 1.37]]</t>
-  </si>
-  <si>
-    <t>[[130, 1, 5, 1.58], [6935, 2, 20, 2.84], [3, 2, 7, 1.75], [10529, 29, 12, 2.59], [2049, 1, 5, 1.26], [6097, 29, 6, 2.48], [1492, 1, 8, 1.8], [141, 2, 5, 1.87], [305, 2, 6, 2.05], [75, 2, 5, 2.5], [2778, 2, 7, 2.99], [83, 2, 5, 1.1], [6098, 29, 5, 2.25], [205, 2, 5, 1.8], [76, 2, 5, 2.42], [2049, 3, 14, 1.3], [2424, 29, 9, 2.49], [11737, 2, 5, 1.65], [66, 1, 5, 2.14], [10530, 29, 9, 1.83], [7004, 1, 5, 1.47], [6936, 2, 14, 2.52], [144, 2, 5, 1.74], [159, 1, 9, 1.07], [20252, 2, 5, 2.51], [206, 2, 5, 1.76], [1490, 1, 5, 1.66], [146, 2, 5, 1.73], [1776, 1, 6, 2.44], [143, 2, 5, 1.76], [413, 1, 5, 2.07], [20258, 2, 5, 2.44], [79, 1, 5, 2.43], [2423, 29, 5, 2.1], [8853, 2, 13, 3.07], [1504, 2, 8, 2.97], [145, 2, 5, 1.73], [346, 1, 5, 1.77], [10149, 3, 20, 0.87], [88, 10, 14, 1.86], [12224, 1, 5, 1.37], [308, 1, 8, 2.69], [13028, 3, 6, 2.54], [8926, 1, 6, 1.74], [5165, 1, 5, 1.6], [2912, 1, 6, 1.48], [12924, 1, 5, 0.84], [615, 2, 12, 2.67], [23, 1, 5, 1.43], [20256, 2, 5, 2.14], [1413, 1, 5, 1.85], [9760, 29, 5, 2.07], [167, 1, 5, 1.73], [167, 3, 6, 1.63], [214, 3, 14, 1.61], [6097, 80, 5, 2.45], [13260, 29, 5, 2.35], [74, 1, 5, 2.44], [6098, 80, 5, 2.28], [7036, 1, 8, 2.49], [20255, 2, 5, 2.49], [3495, 3, 21, 1.28], [1413, 15, 5, 1.85], [10149, 1, 5, 1.28], [286, 3, 5, 1.93], [2775, 2, 5, 2.52], [1703, 2, 8, 2.63], [2497, 2, 6, 2.51], [616, 2, 8, 2.63], [8104, 1, 7, 1.26], [66, 16, 5, 2.03], [11454, 2, 10, 2.65], [88, 1, 5, 1.64], [335, 3, 16, 1.83], [12225, 1, 5, 1.33], [168, 3, 7, 1.03], [1414, 1, 5, 1.89], [1413, 16, 5, 1.82], [2322, 2, 5, 2.23], [2726, 3, 6, 2.23], [3670, 2, 10, 2.1], [18, 1, 5, 1.17], [336, 15, 5, 1.52], [1414, 15, 5, 1.93], [10529, 80, 5, 2.44], [624, 2, 9, 2.56], [168, 1, 5, 0.93], [24, 1, 5, 1.61], [5208, 3, 9, 1.13], [9069, 1, 5, 1.19], [11770, 1, 6, 2.7], [2331, 1, 5, 1.9], [27, 1, 5, 1.35], [2776, 2, 5, 2.49], [8945, 1, 5, 1.85], [9613, 1, 5, 1.22], [12369, 1, 5, 2.32], [11952, 1, 7, 2.76], [14037, 3, 8, 1.35], [8677, 3, 6, 1.9]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 19, 2.72], [2778, 2, 10, 2.84], [9760, 29, 6, 2.23], [362, 2, 7, 2.18], [130, 1, 5, 1.56], [141, 2, 8, 1.79], [5165, 1, 5, 1.67], [305, 2, 6, 1.76], [8853, 2, 14, 2.82], [2775, 2, 7, 2.63], [6097, 29, 5, 2.44], [2776, 2, 7, 2.65], [2424, 29, 5, 2.42], [2912, 1, 5, 2.46], [143, 2, 7, 2.04], [3576, 29, 5, 1.44], [1492, 1, 5, 2.37], [615, 2, 6, 2.56], [361, 2, 5, 1.63], [205, 2, 5, 1.66], [159, 1, 7, 2.46], [7004, 1, 5, 1.37], [11089, 1, 9, 2.53], [616, 2, 6, 2.49], [6936, 2, 18, 2.59], [6098, 29, 5, 2.5], [3840, 1, 5, 2.31], [2423, 29, 5, 2.27], [11739, 2, 5, 1.7], [206, 2, 5, 1.59], [6097, 80, 5, 2.37], [20258, 2, 5, 2.4], [12269, 2, 5, 2.43], [6952, 1, 7, 2.47], [12224, 1, 5, 2.04], [20252, 2, 5, 2.2], [1490, 1, 5, 2.42], [11426, 29, 5, 1.59], [12271, 2, 5, 2.45], [624, 2, 5, 2.31], [6098, 80, 5, 2.26], [12870, 1, 6, 2.42], [3429, 15, 5, 1.66], [2424, 80, 5, 2.63], [3670, 2, 6, 2.43], [159, 3, 9, 2.06], [1309, 1, 5, 2.24], [2331, 1, 5, 2.33], [3, 2, 5, 2.6], [7885, 4, 5, 1.02], [11426, 25, 5, 1.53], [5165, 2, 7, 1.28], [11767, 1, 5, 2.13], [1413, 15, 5, 1.98], [8926, 1, 7, 1.82], [13028, 3, 5, 2.58], [2912, 2, 7, 2.01], [2423, 80, 5, 2.54], [2497, 2, 5, 2.43], [1801, 1, 5, 2.39], [3429, 16, 5, 1.7], [159, 16, 5, 2.06], [1413, 1, 5, 2.03], [8283, 1, 5, 2.34], [3016, 68, 5, 1.46], [75, 2, 5, 2.46], [20256, 2, 5, 2.31], [5005, 1, 5, 1.71], [12764, 1, 5, 1.88], [3429, 1, 5, 1.96], [1413, 16, 5, 1.96], [5208, 3, 7, 1.01], [8286, 1, 5, 2.64], [12369, 1, 5, 2.37], [2438, 1, 5, 1.88], [12369, 3, 8, 2.62], [11808, 1, 6, 2.53], [14037, 3, 6, 1.14], [11164, 1, 5, 1.99], [10408, 1, 5, 2.55], [8286, 2, 6, 2.42], [1163, 3, 6, 1.55], [432, 3, 6, 1.47], [20255, 2, 5, 1.98], [2160, 68, 5, 1.82], [11586, 1, 9, 2.54], [9069, 1, 5, 1.18], [432, 1, 5, 1.54], [8283, 2, 6, 2.34], [3673, 2, 5, 2.24], [3016, 3, 5, 1.55], [5209, 3, 6, 0.9], [8285, 1, 5, 2.6], [12764, 2, 10, 2.6], [10407, 1, 5, 2.26], [74, 1, 5, 2.3], [8274, 3, 5, 1.17], [8600, 1, 5, 2.41], [5005, 3, 6, 1.56], [8635, 3, 5, 1.18]]</t>
-  </si>
-  <si>
-    <t>[[130, 1, 5, 1.65], [6935, 2, 24, 2.71], [305, 2, 8, 2.06], [2778, 2, 11, 3.21], [141, 2, 6, 1.39], [145, 2, 7, 1.8], [143, 2, 7, 1.81], [146, 2, 6, 2.08], [615, 2, 7, 2.51], [2424, 29, 6, 2.42], [1504, 2, 9, 2.96], [75, 2, 7, 2.65], [6497, 1, 6, 2.64], [2423, 29, 5, 2.24], [205, 2, 5, 1.61], [8853, 2, 12, 2.92], [159, 1, 12, 2.67], [2776, 2, 6, 2.51], [9507, 1, 5, 1.16], [2912, 1, 6, 2.54], [3, 2, 7, 2.71], [1492, 1, 5, 2.44], [2422, 29, 5, 2.38], [1339, 1, 6, 2.2], [9507, 3, 5, 1.16], [2049, 3, 13, 1.38], [5165, 1, 5, 1.61], [2497, 2, 7, 2.67], [6494, 1, 9, 1.6], [20252, 2, 6, 1.65], [3670, 2, 9, 2.71], [20256, 2, 5, 2.14], [2774, 2, 7, 2.81], [1413, 15, 5, 2.04], [1413, 1, 5, 2.02], [1413, 16, 5, 1.99], [2424, 80, 6, 2.37], [2423, 80, 6, 2.01], [6936, 2, 14, 2.78], [3674, 2, 9, 2.56], [11089, 1, 7, 2.77], [74, 1, 5, 2.43], [6952, 1, 6, 2.43], [9126, 1, 5, 1.74], [1163, 3, 6, 1.23], [8283, 1, 5, 2.08], [9124, 1, 5, 1.74], [2050, 3, 7, 1.74], [71, 1, 5, 2.04], [8286, 1, 5, 2.11], [2422, 80, 5, 2.52], [114, 3, 5, 2.01], [2331, 1, 5, 1.96], [13260, 29, 5, 2.22], [2050, 1, 10, 1.66], [2326, 2, 5, 1.5], [2055, 3, 6, 1.57], [11954, 1, 7, 2.16], [247, 1, 5, 1.75], [11158, 1, 24, 2.22], [159, 16, 5, 2.1], [159, 3, 9, 2.04], [2322, 2, 5, 1.43], [12764, 1, 5, 2.0], [1886, 2, 8, 2.57], [14037, 3, 6, 1.2], [186, 3, 12, 1.02], [10411, 1, 5, 2.16], [7629, 1, 5, 2.01], [1339, 3, 19, 2.29], [335, 3, 19, 1.68], [11677, 1, 12, 2.21], [973, 1, 5, 2.0], [6359, 10, 17, 1.75], [71, 15, 5, 1.9], [71, 16, 5, 1.92], [20927, 1, 5, 1.71], [114, 1, 5, 1.81], [1548, 1, 5, 2.38], [10411, 10, 9, 1.91], [10406, 1, 5, 1.72], [8285, 1, 5, 1.93], [8283, 2, 6, 1.86], [3016, 68, 5, 2.38], [5208, 3, 7, 1.2], [13023, 1, 5, 2.29], [3257, 4, 5, 1.27], [19878, 1, 5, 1.06], [1895, 3, 6, 1.62], [5165, 2, 7, 1.29], [2436, 4, 5, 1.08], [2912, 2, 7, 2.34], [8286, 2, 6, 1.85], [8599, 1, 5, 2.28], [11808, 1, 6, 2.7], [12764, 2, 7, 1.76], [1801, 1, 5, 2.48], [432, 3, 6, 2.25], [8898, 3, 6, 2.27], [8285, 2, 6, 1.93]]</t>
-  </si>
-  <si>
-    <t>[[130, 1, 5, 1.39], [615, 2, 8, 2.13], [6935, 2, 13, 2.66], [616, 2, 7, 2.2], [2912, 1, 7, 2.6], [305, 2, 5, 1.87], [151, 1, 5, 1.57], [2778, 2, 6, 2.53], [5165, 1, 5, 1.67], [144, 2, 5, 2.13], [7004, 1, 5, 1.84], [1504, 2, 7, 2.89], [205, 2, 5, 1.64], [624, 2, 5, 1.87], [3893, 1, 5, 2.38], [146, 2, 5, 2.15], [6497, 1, 5, 2.45], [1492, 1, 5, 2.42], [141, 2, 5, 1.65], [3576, 29, 5, 2.0], [12269, 2, 5, 2.42], [159, 1, 6, 2.19], [9760, 29, 6, 2.51], [11737, 2, 5, 1.62], [3889, 1, 5, 2.38], [3891, 1, 5, 2.36], [88, 10, 17, 1.86], [2049, 1, 5, 1.27], [2775, 2, 5, 2.54], [3577, 29, 5, 1.64], [12224, 1, 5, 2.0], [2497, 2, 5, 2.52], [3840, 1, 7, 2.73], [2776, 2, 5, 2.49], [2049, 3, 10, 1.06], [13028, 3, 5, 2.47], [12271, 2, 5, 2.4], [11739, 2, 5, 1.6], [6496, 1, 5, 2.39], [3, 2, 5, 2.47], [75, 2, 5, 2.46], [3575, 29, 5, 1.98], [61, 3, 6, 1.19], [2423, 29, 5, 2.17], [20252, 2, 5, 2.44], [11426, 29, 5, 1.63], [12212, 29, 5, 1.81], [1413, 15, 5, 1.52], [2774, 2, 5, 2.49], [6494, 1, 6, 1.72], [2050, 3, 7, 2.72], [1413, 1, 5, 1.55], [214, 3, 12, 1.32], [33, 1, 5, 1.82], [20256, 2, 5, 2.4], [159, 3, 8, 1.99], [88, 1, 5, 1.67], [336, 15, 5, 2.31], [2055, 3, 6, 2.41], [5165, 2, 9, 1.76], [346, 1, 5, 1.89], [9372, 1, 10, 1.85], [2104, 3, 9, 1.4], [8853, 2, 10, 2.76], [3577, 25, 5, 1.71], [3670, 2, 5, 2.5], [2912, 2, 10, 3.12], [159, 16, 5, 2.1], [3576, 25, 5, 2.15], [1414, 15, 5, 1.61], [5208, 3, 9, 1.67], [1413, 16, 5, 1.5], [1309, 1, 5, 2.22], [21793, 1, 8, 2.34], [286, 3, 5, 1.23], [11769, 1, 5, 2.43], [6936, 2, 13, 3.16], [74, 1, 5, 2.41], [2104, 1, 5, 1.75], [4253, 1, 5, 2.18], [3575, 25, 5, 2.0], [10408, 1, 5, 2.43], [2423, 80, 5, 2.41], [12369, 1, 5, 2.37], [10411, 1, 5, 2.46], [5434, 1, 5, 1.88], [37, 1, 5, 1.67], [440, 3, 5, 2.41], [34, 1, 5, 1.73], [1414, 1, 5, 1.6], [5435, 1, 5, 1.18], [11952, 1, 6, 2.49], [2331, 1, 5, 2.45], [1274, 1, 5, 2.39], [1548, 1, 5, 2.42], [14037, 3, 6, 1.32], [2055, 1, 5, 2.48], [389, 4, 5, 1.23], [3674, 2, 5, 2.22], [12369, 3, 8, 2.72]]</t>
-  </si>
-  <si>
-    <t>[[616, 2, 11, 2.7], [615, 2, 9, 2.6], [130, 1, 5, 1.23], [990, 2, 5, 2.35], [624, 2, 9, 2.66], [151, 1, 5, 1.53], [2912, 1, 5, 2.36], [305, 2, 5, 2.0], [6935, 2, 13, 2.93], [2778, 2, 6, 2.51], [5165, 1, 5, 1.58], [7004, 1, 5, 1.28], [144, 2, 5, 1.82], [143, 2, 5, 1.86], [2775, 2, 5, 2.51], [9760, 29, 5, 2.29], [2776, 2, 5, 2.48], [159, 1, 8, 2.21], [146, 2, 5, 1.84], [3840, 1, 5, 2.38], [3576, 29, 5, 1.51], [3893, 1, 5, 2.01], [88, 10, 14, 1.84], [2424, 29, 5, 2.35], [12269, 2, 5, 2.25], [141, 2, 5, 1.6], [1504, 2, 6, 2.46], [6497, 1, 5, 2.43], [12224, 1, 5, 2.0], [1492, 1, 5, 2.42], [20252, 2, 9, 2.42], [20256, 2, 7, 2.59], [2497, 2, 5, 2.44], [3, 2, 6, 2.82], [3575, 29, 5, 1.56], [8853, 2, 10, 2.51], [2049, 3, 10, 1.06], [9, 1, 7, 2.51], [3577, 29, 5, 1.53], [3429, 15, 5, 1.67], [75, 2, 5, 2.53], [6496, 1, 5, 2.41], [6097, 29, 5, 2.41], [1413, 15, 5, 1.86], [2423, 29, 5, 2.26], [229, 1, 5, 2.33], [11426, 29, 5, 1.65], [823, 1, 5, 2.37], [1243, 2, 5, 2.17], [1413, 1, 5, 1.81], [9372, 1, 12, 1.84], [2057, 3, 7, 1.49], [13028, 3, 5, 2.45], [2050, 3, 6, 1.25], [2424, 80, 6, 2.49], [12870, 1, 6, 2.54], [2774, 2, 5, 2.37], [1413, 16, 5, 1.82], [2055, 3, 6, 1.29], [346, 1, 5, 1.96], [66, 1, 5, 2.12], [5165, 2, 10, 1.7], [2912, 2, 10, 3.01], [1414, 15, 5, 1.94], [159, 3, 9, 2.08], [6936, 2, 12, 2.8], [88, 1, 5, 1.71], [6097, 80, 5, 2.44], [2331, 1, 5, 1.9], [10149, 3, 15, 1.16], [3576, 25, 5, 1.61], [5434, 1, 5, 1.58], [5208, 3, 8, 1.26], [3429, 16, 5, 1.66], [1548, 1, 5, 2.37], [11770, 1, 6, 2.55], [247, 1, 5, 1.8], [159, 16, 5, 2.09], [8104, 1, 9, 1.69], [8286, 1, 5, 1.76], [2423, 80, 5, 2.4], [3575, 25, 5, 1.6], [74, 1, 5, 2.48], [3429, 1, 5, 1.68], [3577, 25, 5, 1.49], [1414, 16, 5, 1.91], [20258, 2, 7, 2.64], [1414, 1, 5, 1.91], [11952, 1, 6, 2.54], [66, 16, 5, 1.98], [1339, 1, 5, 2.13], [12369, 1, 5, 2.58], [286, 3, 5, 1.83], [10411, 1, 5, 2.33], [11426, 25, 5, 1.7], [10408, 1, 5, 2.3], [389, 4, 5, 1.28], [11811, 1, 6, 1.77], [1163, 3, 5, 1.09], [5435, 1, 5, 1.17]]</t>
+    <t>02/11/2025 13:11</t>
+  </si>
+  <si>
+    <t>02/11/2025 16:59</t>
+  </si>
+  <si>
+    <t>[[326, 2, 4, 0.27], [6935, 2, 8, 0.51], [151, 1, 3, 0.27], [589, 2, 4, 0.33], [305, 2, 3, 0.5], [8915, 2, 4, 0.33], [205, 2, 3, 0.46], [2328, 2, 4, 0.69], [2778, 2, 4, 0.69], [143, 2, 3, 0.52], [593, 2, 5, 0.34], [144, 2, 3, 0.63], [6936, 2, 5, 0.46], [145, 2, 3, 0.63], [159, 1, 3, 0.3], [206, 2, 3, 0.46], [20252, 2, 3, 0.72], [146, 2, 3, 0.63], [19925, 2, 3, 0.72], [7004, 1, 3, 0.46], [20258, 2, 3, 0.72], [1490, 1, 3, 0.72], [11737, 2, 3, 0.69], [76, 2, 3, 0.72], [107, 2, 3, 0.6], [141, 2, 3, 0.59], [8648, 2, 4, 0.69], [8650, 2, 3, 0.6], [8938, 2, 4, 0.39], [1654, 2, 3, 0.6], [79, 1, 3, 0.6], [1446, 2, 3, 0.54], [10148, 1, 3, 0.39], [1007, 2, 5, 0.28], [8853, 2, 4, 0.44], [11739, 2, 3, 0.71], [12224, 1, 3, 0.46], [1656, 2, 3, 0.6], [1243, 2, 3, 0.72], [1504, 2, 4, 0.69], [1429, 2, 3, 0.54], [1006, 2, 4, 0.55], [2912, 1, 3, 0.48], [88, 10, 6, 0.33], [308, 1, 4, 0.69], [74, 1, 3, 0.72], [8649, 2, 3, 0.72], [20256, 2, 3, 0.72], [229, 1, 3, 0.72], [12225, 1, 3, 0.46], [2991, 3, 3, 0.72], [9507, 3, 3, 0.6], [5165, 1, 3, 0.6], [10149, 3, 14, 0.59], [20255, 2, 3, 0.71], [94, 4, 3, 0.72], [615, 2, 4, 0.4], [2991, 1, 3, 0.72], [434, 2, 4, 0.32], [167, 3, 3, 0.47], [2775, 2, 3, 0.72], [1655, 2, 3, 0.6], [9829, 3, 3, 0.42], [8939, 2, 3, 0.39], [7036, 1, 3, 0.6], [167, 1, 3, 0.48], [12870, 1, 3, 0.6], [1766, 2, 3, 0.48], [616, 2, 4, 0.4], [8651, 2, 3, 0.72], [13260, 29, 3, 0.72], [18, 1, 3, 0.36], [1126, 2, 3, 0.54], [11454, 2, 4, 0.48], [126, 2, 3, 0.42], [974, 3, 4, 0.8], [9507, 1, 3, 0.6], [3670, 2, 4, 0.69], [3016, 1, 4, 0.69], [5208, 3, 4, 0.23], [2726, 3, 3, 0.72], [9372, 1, 3, 0.4], [5435, 1, 3, 0.37], [3016, 68, 3, 0.72], [168, 3, 4, 0.43], [336, 15, 3, 0.48], [2497, 2, 3, 0.72], [8677, 3, 4, 0.7], [624, 2, 4, 0.4], [22554, 10, 8, 0.52], [168, 1, 3, 0.48], [12369, 1, 3, 0.72], [8104, 1, 3, 0.4], [335, 3, 9, 0.46], [2776, 2, 3, 0.72], [88, 1, 3, 0.6], [10149, 1, 3, 0.72], [1766, 25, 3, 0.48], [110, 4, 3, 0.47], [432, 3, 4, 0.57]]</t>
+  </si>
+  <si>
+    <t>[[326, 2, 4, 0.3], [130, 1, 3, 0.48], [6935, 2, 8, 0.48], [3, 2, 4, 0.49], [589, 2, 5, 0.43], [2327, 2, 4, 0.6], [2328, 2, 4, 0.69], [8915, 2, 4, 0.3], [362, 2, 3, 0.62], [75, 2, 3, 0.62], [140, 2, 3, 0.48], [205, 2, 3, 0.46], [76, 2, 3, 0.72], [159, 1, 4, 0.33], [305, 2, 3, 0.53], [2778, 2, 4, 0.69], [10530, 29, 3, 0.4], [141, 2, 3, 0.59], [6936, 2, 5, 0.43], [593, 2, 5, 0.47], [66, 1, 3, 0.62], [412, 1, 3, 0.59], [11737, 2, 3, 0.69], [20252, 2, 3, 0.72], [1490, 1, 3, 0.72], [206, 2, 3, 0.46], [79, 1, 3, 0.72], [8648, 2, 4, 0.69], [144, 2, 3, 0.66], [7004, 1, 3, 0.46], [8650, 2, 4, 0.69], [146, 2, 3, 0.66], [96, 1, 3, 0.6], [1007, 2, 5, 0.26], [143, 2, 3, 0.66], [8853, 2, 4, 0.4], [856, 1, 3, 0.6], [1446, 2, 3, 0.54], [88, 10, 8, 0.4], [8938, 2, 4, 0.36], [1654, 2, 3, 0.56], [145, 2, 3, 0.66], [20258, 2, 3, 0.72], [1429, 2, 3, 0.54], [10149, 3, 14, 0.59], [308, 1, 4, 0.6], [1656, 2, 3, 0.56], [12224, 1, 3, 0.46], [9507, 3, 3, 0.6], [1504, 2, 4, 0.69], [8649, 2, 4, 0.8], [10148, 1, 3, 0.37], [1006, 2, 4, 0.55], [7036, 1, 3, 0.51], [96, 11, 15, 0.51], [167, 3, 4, 0.46], [167, 1, 3, 0.48], [229, 1, 3, 0.72], [434, 2, 4, 0.32], [2991, 3, 3, 0.72], [583, 2, 3, 0.36], [13260, 29, 3, 0.72], [12661, 1, 3, 0.72], [20256, 2, 3, 0.72], [615, 2, 4, 0.4], [214, 3, 9, 0.32], [1703, 2, 3, 0.43], [74, 1, 3, 0.72], [9507, 1, 3, 0.6], [8651, 2, 3, 0.72], [10149, 1, 3, 0.72], [584, 2, 3, 0.37], [12870, 1, 3, 0.51], [20255, 2, 3, 0.6], [3495, 3, 14, 0.37], [1655, 2, 3, 0.56], [8939, 2, 3, 0.36], [2912, 1, 3, 0.48], [5165, 1, 3, 0.6], [66, 16, 3, 0.62], [168, 3, 4, 0.43], [2991, 1, 3, 0.72], [616, 2, 3, 0.4], [126, 2, 3, 0.35], [8104, 1, 3, 0.37], [335, 3, 9, 0.41], [3016, 68, 3, 0.72], [2775, 2, 3, 0.72], [168, 1, 3, 0.48], [2322, 2, 3, 0.72], [12225, 1, 3, 0.46], [88, 1, 3, 0.6], [585, 2, 3, 0.36], [336, 15, 3, 0.48], [435, 2, 3, 0.38], [5493, 2, 3, 0.51], [9613, 1, 3, 0.36], [1126, 2, 3, 0.54], [12369, 1, 3, 0.72], [9372, 1, 3, 0.4]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 8, 0.4], [9760, 29, 3, 0.5], [2327, 2, 4, 0.53], [326, 2, 4, 0.48], [2778, 2, 4, 0.48], [362, 2, 4, 0.58], [130, 1, 3, 0.48], [589, 2, 4, 0.5], [8648, 2, 4, 0.53], [141, 2, 4, 0.59], [2328, 2, 3, 0.45], [8853, 2, 4, 0.4], [8650, 2, 4, 0.6], [2775, 2, 4, 0.6], [5493, 2, 3, 0.51], [140, 2, 3, 0.48], [159, 1, 3, 0.37], [6936, 2, 5, 0.4], [2776, 2, 4, 0.6], [8649, 2, 3, 0.45], [413, 1, 3, 0.71], [615, 2, 3, 0.51], [5491, 2, 3, 0.72], [361, 2, 3, 0.65], [593, 2, 4, 0.45], [1446, 2, 3, 0.54], [7004, 1, 3, 0.46], [7036, 1, 3, 0.51], [1656, 2, 3, 0.6], [616, 2, 3, 0.51], [11737, 2, 3, 0.67], [1429, 2, 3, 0.54], [434, 2, 3, 0.2], [1654, 2, 3, 0.6], [8915, 2, 4, 0.43], [6494, 1, 3, 0.5], [20258, 2, 3, 0.72], [523, 2, 3, 0.66], [3576, 29, 3, 0.6], [583, 2, 3, 0.43], [12269, 2, 3, 0.47], [66, 1, 3, 0.72], [1490, 1, 3, 0.72], [12224, 1, 3, 0.48], [9372, 1, 4, 0.53], [20252, 2, 3, 0.72], [9507, 3, 3, 0.6], [3577, 29, 3, 0.48], [9507, 1, 3, 0.43], [3, 2, 3, 0.6], [3576, 25, 3, 0.71], [9910, 29, 3, 0.62], [8938, 2, 4, 0.38], [3575, 29, 3, 0.71], [624, 2, 3, 0.45], [11952, 1, 3, 0.4], [11681, 2, 5, 0.4], [159, 3, 5, 0.46], [11738, 2, 3, 0.69], [11772, 1, 3, 0.45], [11426, 25, 3, 0.49], [11426, 29, 3, 0.49], [3577, 25, 3, 0.48], [3670, 2, 4, 0.69], [1126, 2, 3, 0.51], [3575, 25, 3, 0.7], [1413, 15, 3, 0.48], [21793, 1, 3, 0.48], [229, 1, 3, 0.72], [11150, 1, 3, 0.48], [20256, 2, 3, 0.72], [9910, 25, 3, 0.62], [214, 3, 9, 0.3], [8283, 1, 3, 0.5], [66, 16, 3, 0.72], [159, 16, 3, 0.6], [126, 2, 3, 0.35], [2438, 1, 3, 0.48], [2160, 68, 3, 0.6], [1413, 16, 3, 0.48], [1801, 1, 3, 0.68], [21809, 1, 3, 0.54], [5208, 3, 4, 0.48], [8939, 2, 3, 0.37], [1413, 1, 3, 0.48], [21806, 1, 3, 0.51], [2497, 2, 3, 0.72], [8286, 1, 3, 0.47], [11150, 2, 4, 0.45], [432, 1, 3, 0.6], [3337, 1, 3, 0.59], [11808, 1, 4, 0.69], [11586, 1, 4, 0.6], [8286, 2, 4, 0.46], [432, 3, 4, 0.59], [9081, 3, 6, 0.55], [566, 2, 4, 0.48], [10408, 1, 3, 0.72], [66, 15, 3, 0.72], [1339, 1, 3, 0.46]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 8, 0.4], [130, 1, 3, 0.4], [11737, 2, 3, 0.52], [2328, 2, 4, 0.48], [2778, 2, 4, 0.44], [143, 2, 4, 0.59], [145, 2, 4, 0.53], [5493, 2, 3, 0.51], [146, 2, 3, 0.54], [5491, 2, 3, 0.71], [8650, 2, 4, 0.44], [11739, 2, 3, 0.65], [615, 2, 4, 0.65], [141, 2, 3, 0.49], [326, 2, 4, 0.33], [205, 2, 3, 0.44], [434, 2, 3, 0.36], [8853, 2, 4, 0.4], [11838, 2, 4, 0.6], [11681, 2, 5, 0.4], [159, 1, 4, 0.27], [1005, 2, 3, 0.38], [589, 2, 4, 0.5], [1504, 2, 4, 0.6], [435, 2, 3, 0.36], [3, 2, 4, 0.53], [8648, 2, 4, 0.8], [8915, 2, 4, 0.49], [6936, 2, 5, 0.43], [378, 2, 3, 0.72], [2912, 1, 3, 0.48], [1446, 2, 3, 0.54], [2776, 2, 4, 0.8], [3478, 2, 3, 0.26], [140, 2, 3, 0.48], [5165, 1, 3, 0.6], [20252, 2, 3, 0.72], [1243, 2, 4, 0.72], [2497, 2, 4, 0.8], [18964, 1, 3, 0.34], [6097, 29, 3, 0.72], [3670, 2, 4, 0.53], [8938, 2, 3, 0.51], [7004, 1, 3, 0.4], [1429, 2, 3, 0.54], [8649, 2, 3, 0.72], [1007, 2, 4, 0.29], [565, 2, 4, 0.42], [59, 3, 4, 0.29], [20256, 2, 3, 0.72], [6097, 80, 3, 0.71], [2774, 2, 3, 0.6], [1126, 2, 4, 0.47], [1049, 2, 3, 0.47], [13263, 29, 3, 0.72], [13260, 29, 3, 0.72], [74, 1, 3, 0.72], [3674, 2, 4, 0.6], [8283, 1, 3, 0.5], [13258, 29, 3, 0.72], [9081, 3, 8, 0.8], [13034, 1, 3, 0.72], [3576, 29, 3, 0.63], [7629, 1, 3, 0.59], [11158, 1, 8, 0.36], [22316, 3, 4, 0.62], [114, 3, 3, 0.55], [12224, 1, 3, 0.46], [2331, 1, 3, 0.6], [2322, 2, 3, 0.44], [2326, 2, 3, 0.43], [2991, 1, 3, 0.72], [11953, 1, 4, 0.6], [214, 3, 9, 0.3], [2991, 3, 3, 0.72], [10411, 1, 3, 0.54], [13259, 29, 3, 0.6], [2419, 29, 3, 0.72], [11954, 1, 3, 0.6], [159, 3, 5, 0.36], [1548, 1, 3, 0.72], [11772, 1, 3, 0.45], [22317, 3, 4, 0.62], [1886, 2, 3, 0.53], [186, 3, 8, 0.31], [13033, 1, 3, 0.72], [159, 16, 3, 0.48], [13034, 3, 4, 0.69], [3575, 29, 3, 0.62], [11769, 1, 3, 0.72], [6359, 10, 9, 0.28], [11677, 1, 4, 0.47], [59, 1, 3, 0.39], [11767, 1, 3, 0.72], [335, 3, 9, 0.26], [8285, 1, 3, 0.6], [6359, 1, 3, 0.39], [5208, 3, 4, 0.33], [13033, 3, 4, 0.6], [10411, 10, 6, 0.38]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 6, 0.51], [130, 1, 3, 0.48], [615, 2, 4, 0.57], [326, 2, 3, 0.39], [151, 1, 3, 0.48], [5493, 2, 3, 0.51], [616, 2, 3, 0.51], [2778, 2, 4, 0.8], [2327, 2, 4, 0.8], [144, 2, 3, 0.72], [5165, 1, 3, 0.6], [205, 2, 3, 0.45], [8915, 2, 4, 0.36], [589, 2, 4, 0.54], [7004, 1, 3, 0.47], [159, 1, 3, 0.3], [434, 2, 3, 0.26], [8648, 2, 3, 0.6], [593, 2, 4, 0.45], [1504, 2, 4, 0.69], [3893, 1, 3, 0.72], [12269, 2, 3, 0.63], [146, 2, 3, 0.72], [624, 2, 3, 0.59], [11737, 2, 3, 0.63], [88, 10, 8, 0.4], [2328, 2, 3, 0.72], [8650, 2, 3, 0.72], [141, 2, 3, 0.62], [5491, 2, 3, 0.72], [3889, 1, 3, 0.72], [583, 2, 3, 0.42], [6936, 2, 5, 0.46], [378, 2, 3, 0.72], [12271, 2, 3, 0.65], [12224, 1, 3, 0.61], [2775, 2, 3, 0.72], [8938, 2, 4, 0.36], [3577, 29, 3, 0.6], [140, 2, 3, 0.48], [3, 2, 3, 0.6], [6496, 1, 3, 0.72], [11739, 2, 3, 0.65], [8853, 2, 4, 0.48], [13028, 3, 3, 0.72], [3576, 29, 3, 0.68], [9, 1, 3, 0.54], [2776, 2, 3, 0.72], [9507, 3, 3, 0.6], [11685, 2, 4, 0.4], [2497, 2, 3, 0.72], [1446, 2, 3, 0.59], [8649, 2, 3, 0.6], [435, 2, 3, 0.27], [1429, 2, 3, 0.59], [33, 1, 3, 0.47], [3575, 29, 3, 0.67], [1007, 2, 4, 0.35], [1656, 2, 3, 0.6], [10721, 29, 3, 0.6], [6494, 1, 3, 0.6], [94, 4, 3, 0.72], [1886, 2, 3, 0.29], [20252, 2, 3, 0.72], [8939, 2, 3, 0.36], [346, 1, 3, 0.6], [1006, 2, 3, 0.61], [584, 2, 3, 0.43], [12212, 29, 3, 0.53], [214, 3, 8, 0.37], [5165, 2, 5, 0.51], [336, 15, 3, 0.48], [11953, 1, 3, 0.6], [1654, 2, 3, 0.6], [159, 3, 5, 0.36], [1126, 2, 3, 0.58], [88, 1, 3, 0.6], [436, 2, 3, 0.33], [3577, 25, 3, 0.6], [21793, 1, 4, 0.69], [5490, 2, 3, 0.48], [20256, 2, 3, 0.72], [37, 1, 3, 0.47], [35, 1, 3, 0.48], [1274, 1, 3, 0.72], [11772, 1, 3, 0.51], [11426, 29, 3, 0.57], [2108, 1, 3, 0.48], [2104, 3, 6, 0.35], [11952, 1, 3, 0.45], [3576, 25, 3, 0.67], [2774, 2, 3, 0.72], [5208, 3, 4, 0.53], [2104, 1, 3, 0.48], [972, 1, 3, 0.48], [11769, 1, 3, 0.72], [159, 16, 3, 0.48], [10408, 1, 3, 0.54], [94, 1, 3, 0.72], [9507, 1, 3, 0.6]]</t>
+  </si>
+  <si>
+    <t>[[130, 1, 3, 0.48], [616, 2, 4, 0.44], [326, 2, 4, 0.43], [615, 2, 4, 0.48], [151, 1, 3, 0.48], [6935, 2, 5, 0.46], [589, 2, 4, 0.49], [5493, 2, 3, 0.51], [2328, 2, 3, 0.6], [624, 2, 4, 0.48], [305, 2, 3, 0.6], [2778, 2, 3, 0.6], [8915, 2, 4, 0.33], [7004, 1, 3, 0.4], [205, 2, 3, 0.5], [159, 1, 3, 0.27], [143, 2, 3, 0.63], [9760, 29, 3, 0.6], [593, 2, 4, 0.49], [5165, 1, 3, 0.6], [8648, 2, 3, 0.51], [144, 2, 3, 0.63], [5491, 2, 3, 0.72], [8650, 2, 3, 0.51], [2775, 2, 3, 0.72], [11737, 2, 3, 0.66], [140, 2, 3, 0.4], [434, 2, 3, 0.3], [1446, 2, 3, 0.53], [88, 10, 6, 0.34], [8853, 2, 4, 0.48], [2776, 2, 3, 0.72], [3893, 1, 3, 0.61], [146, 2, 3, 0.63], [9, 1, 3, 0.5], [3, 2, 3, 0.6], [145, 2, 3, 0.63], [8938, 2, 4, 0.32], [12224, 1, 3, 0.46], [6936, 2, 4, 0.44], [3576, 29, 3, 0.62], [20252, 2, 3, 0.51], [1504, 2, 4, 0.8], [1429, 2, 3, 0.53], [1656, 2, 3, 0.47], [20256, 2, 3, 0.51], [229, 1, 3, 0.72], [61, 3, 3, 0.48], [8649, 2, 3, 0.72], [6496, 1, 3, 0.72], [9507, 3, 3, 0.6], [3575, 29, 3, 0.61], [2497, 2, 3, 0.72], [11739, 2, 3, 0.68], [1654, 2, 3, 0.56], [9372, 1, 4, 0.4], [3577, 29, 3, 0.48], [1007, 2, 4, 0.33], [12870, 1, 3, 0.6], [823, 1, 3, 0.72], [584, 2, 3, 0.39], [9491, 1, 3, 0.6], [88, 1, 3, 0.6], [11426, 29, 3, 0.56], [66, 1, 3, 0.6], [5434, 1, 3, 0.37], [9507, 1, 3, 0.6], [13028, 3, 3, 0.72], [5165, 2, 5, 0.4], [159, 3, 5, 0.4], [5490, 2, 3, 0.48], [126, 2, 3, 0.3], [8939, 2, 3, 0.32], [10149, 3, 9, 0.51], [8651, 2, 3, 0.72], [11425, 29, 3, 0.53], [2774, 2, 3, 0.72], [1126, 2, 3, 0.49], [5208, 3, 4, 0.3], [1274, 1, 3, 0.72], [20258, 2, 3, 0.51], [3576, 25, 3, 0.61], [426, 1, 3, 0.19], [11770, 1, 3, 0.6], [159, 16, 3, 0.48], [1548, 1, 3, 0.72], [2331, 1, 3, 0.6], [21793, 1, 3, 0.51], [3577, 25, 3, 0.48], [74, 1, 3, 0.72], [10411, 1, 3, 0.72], [10408, 1, 3, 0.72], [12369, 1, 3, 0.72], [3575, 25, 3, 0.61], [66, 16, 3, 0.6], [6931, 2, 3, 0.53], [8677, 3, 4, 0.72], [105, 3, 3, 0.51], [8286, 1, 3, 0.47], [10407, 1, 3, 0.52]]</t>
+  </si>
+  <si>
+    <t>[[326, 2, 9, 0.82], [6935, 2, 19, 1.62], [151, 1, 9, 1.2], [589, 2, 11, 1.65], [305, 2, 6, 1.43], [8915, 2, 9, 1.06], [205, 2, 5, 0.98], [2328, 2, 7, 1.71], [2778, 2, 7, 1.76], [143, 2, 6, 1.5], [593, 2, 13, 1.48], [144, 2, 5, 1.27], [6936, 2, 13, 1.89], [145, 2, 5, 1.28], [159, 1, 8, 0.98], [206, 2, 5, 0.94], [20252, 2, 5, 1.49], [146, 2, 5, 1.28], [19925, 2, 5, 1.47], [7004, 1, 5, 0.92], [20258, 2, 5, 1.45], [1490, 1, 5, 1.44], [11737, 2, 5, 1.38], [76, 2, 5, 1.46], [107, 2, 5, 1.27], [141, 2, 5, 1.25], [8648, 2, 7, 1.58], [8650, 2, 6, 1.66], [8938, 2, 6, 0.75], [1654, 2, 5, 1.21], [79, 1, 5, 1.2], [1446, 2, 5, 1.13], [10148, 1, 5, 0.75], [1007, 2, 9, 0.68], [8853, 2, 11, 1.78], [11739, 2, 5, 1.42], [12224, 1, 5, 0.96], [1656, 2, 5, 1.22], [1243, 2, 5, 1.51], [1504, 2, 7, 1.64], [1429, 2, 5, 1.13], [1006, 2, 6, 1.1], [2912, 1, 5, 0.95], [88, 10, 14, 1.29], [308, 1, 7, 1.53], [74, 1, 5, 1.47], [8649, 2, 5, 1.47], [20256, 2, 5, 1.45], [229, 1, 5, 1.43], [12225, 1, 5, 0.93], [2991, 3, 5, 1.52], [9507, 3, 5, 1.36], [5165, 1, 5, 1.24], [10149, 3, 20, 1.01], [20255, 2, 5, 1.49], [94, 4, 5, 1.44], [615, 2, 12, 1.53], [2991, 1, 5, 1.39], [434, 2, 7, 0.75], [167, 3, 5, 0.98], [2775, 2, 5, 1.47], [1655, 2, 5, 1.19], [9829, 3, 5, 0.86], [8939, 2, 5, 0.8], [7036, 1, 6, 1.49], [167, 1, 5, 0.99], [12870, 1, 6, 1.52], [1766, 2, 5, 0.98], [616, 2, 12, 1.51], [8651, 2, 5, 1.46], [13260, 29, 5, 1.44], [18, 1, 5, 0.72], [1126, 2, 5, 1.1], [11454, 2, 10, 1.65], [126, 2, 5, 0.85], [974, 3, 6, 1.54], [9507, 1, 5, 1.18], [3670, 2, 7, 1.66], [3016, 1, 7, 1.49], [5208, 3, 9, 0.77], [2726, 3, 5, 1.59], [9372, 1, 9, 1.51], [5435, 1, 5, 0.72], [3016, 68, 5, 1.39], [168, 3, 7, 1.04], [336, 15, 5, 0.95], [2497, 2, 5, 1.49], [8677, 3, 6, 1.44], [624, 2, 12, 1.52], [22554, 10, 12, 1.07], [168, 1, 5, 0.94], [12369, 1, 5, 1.49], [8104, 1, 6, 0.97], [335, 3, 15, 1.13], [2776, 2, 5, 1.47], [88, 1, 5, 1.2], [10149, 1, 5, 1.4], [1766, 25, 5, 1.08], [110, 4, 5, 1.03], [432, 3, 6, 1.12]]</t>
+  </si>
+  <si>
+    <t>[[326, 2, 9, 0.94], [130, 1, 5, 0.99], [6935, 2, 20, 1.6], [3, 2, 8, 1.31], [589, 2, 9, 1.05], [2327, 2, 8, 1.67], [2328, 2, 7, 1.66], [8915, 2, 9, 0.96], [362, 2, 5, 1.31], [75, 2, 5, 1.31], [140, 2, 5, 0.96], [205, 2, 5, 0.96], [76, 2, 5, 1.47], [159, 1, 12, 1.49], [305, 2, 5, 1.06], [2778, 2, 7, 1.8], [10530, 29, 9, 1.49], [141, 2, 5, 1.24], [6936, 2, 14, 1.78], [593, 2, 9, 1.13], [66, 1, 5, 1.29], [412, 1, 5, 1.25], [11737, 2, 5, 1.39], [20252, 2, 5, 1.46], [1490, 1, 5, 1.46], [206, 2, 5, 0.93], [79, 1, 5, 1.47], [8648, 2, 7, 1.59], [144, 2, 5, 1.33], [7004, 1, 5, 0.93], [8650, 2, 7, 1.56], [146, 2, 5, 1.33], [96, 1, 5, 1.14], [1007, 2, 10, 0.73], [143, 2, 5, 1.34], [8853, 2, 12, 1.79], [856, 1, 5, 1.19], [1446, 2, 5, 1.13], [88, 10, 16, 1.25], [8938, 2, 6, 0.67], [1654, 2, 5, 1.12], [145, 2, 5, 1.32], [20258, 2, 5, 1.47], [1429, 2, 5, 1.14], [10149, 3, 20, 1.01], [308, 1, 8, 1.48], [1656, 2, 5, 1.12], [12224, 1, 5, 0.94], [9507, 3, 5, 1.39], [1504, 2, 7, 1.65], [8649, 2, 6, 1.53], [10148, 1, 5, 0.72], [1006, 2, 6, 1.12], [7036, 1, 7, 1.47], [96, 11, 21, 0.85], [167, 3, 6, 0.88], [167, 1, 5, 0.94], [229, 1, 5, 1.43], [434, 2, 7, 0.77], [2991, 3, 5, 1.51], [583, 2, 5, 0.73], [13260, 29, 5, 1.47], [12661, 1, 5, 1.46], [20256, 2, 5, 1.44], [615, 2, 12, 1.69], [214, 3, 13, 0.65], [1703, 2, 7, 1.3], [74, 1, 5, 1.44], [9507, 1, 5, 1.21], [8651, 2, 5, 1.47], [10149, 1, 5, 1.4], [584, 2, 5, 0.75], [12870, 1, 7, 1.49], [20255, 2, 6, 1.64], [3495, 3, 20, 0.64], [1655, 2, 5, 1.11], [8939, 2, 5, 0.73], [2912, 1, 5, 0.95], [5165, 1, 5, 1.19], [66, 16, 5, 1.22], [168, 3, 7, 1.04], [2991, 1, 5, 1.41], [616, 2, 9, 1.57], [126, 2, 5, 0.71], [8104, 1, 8, 1.25], [335, 3, 17, 1.28], [3016, 68, 5, 1.44], [2775, 2, 5, 1.51], [168, 1, 5, 0.94], [2322, 2, 5, 1.47], [12225, 1, 5, 0.92], [88, 1, 5, 1.16], [585, 2, 5, 0.71], [336, 15, 5, 0.92], [435, 2, 5, 0.76], [5493, 2, 7, 1.47], [9613, 1, 5, 0.71], [1126, 2, 5, 1.11], [12369, 1, 5, 1.36], [9372, 1, 9, 1.46]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 24, 1.6], [9760, 29, 6, 1.29], [2327, 2, 9, 1.51], [326, 2, 6, 0.89], [2778, 2, 10, 1.61], [362, 2, 7, 1.26], [130, 1, 5, 0.95], [589, 2, 7, 1.2], [8648, 2, 9, 1.54], [141, 2, 7, 1.32], [2328, 2, 8, 1.65], [8853, 2, 12, 1.69], [8650, 2, 8, 1.5], [2775, 2, 8, 1.54], [5493, 2, 7, 1.6], [140, 2, 5, 0.94], [159, 1, 8, 1.34], [6936, 2, 15, 1.61], [2776, 2, 8, 1.56], [8649, 2, 8, 1.63], [413, 1, 5, 1.4], [615, 2, 7, 1.55], [5491, 2, 5, 1.39], [361, 2, 5, 1.3], [593, 2, 9, 1.42], [1446, 2, 5, 1.09], [7004, 1, 5, 0.94], [7036, 1, 7, 1.46], [1656, 2, 5, 1.16], [616, 2, 7, 1.5], [11737, 2, 5, 1.36], [1429, 2, 5, 1.08], [434, 2, 9, 0.85], [1654, 2, 5, 1.16], [8915, 2, 6, 0.8], [6494, 1, 6, 1.3], [20258, 2, 5, 1.44], [523, 2, 5, 1.33], [3576, 29, 6, 1.45], [583, 2, 5, 0.87], [12269, 2, 5, 0.96], [66, 1, 5, 1.38], [1490, 1, 5, 1.49], [12224, 1, 5, 0.99], [9372, 1, 9, 1.47], [20252, 2, 5, 1.4], [9507, 3, 5, 1.26], [3577, 29, 5, 0.97], [9507, 1, 7, 1.33], [3, 2, 5, 1.26], [3576, 25, 5, 1.5], [9910, 29, 5, 1.28], [8938, 2, 6, 0.69], [3575, 29, 5, 1.41], [624, 2, 8, 1.72], [11952, 1, 9, 1.61], [11681, 2, 15, 1.44], [159, 3, 9, 1.16], [11738, 2, 5, 1.39], [11772, 1, 8, 1.57], [11426, 25, 5, 1.02], [11426, 29, 5, 0.98], [3577, 25, 5, 0.93], [3670, 2, 7, 1.62], [1126, 2, 6, 1.33], [3575, 25, 5, 1.42], [1413, 15, 5, 0.93], [21793, 1, 7, 1.5], [229, 1, 5, 1.5], [11150, 1, 5, 0.91], [20256, 2, 5, 1.36], [9910, 25, 5, 1.21], [214, 3, 14, 0.73], [8283, 1, 5, 1.0], [66, 16, 5, 1.41], [159, 16, 5, 1.17], [126, 2, 5, 0.73], [2438, 1, 6, 1.2], [2160, 68, 5, 1.15], [1413, 16, 5, 0.95], [1801, 1, 5, 1.39], [21809, 1, 5, 1.09], [5208, 3, 7, 1.16], [8939, 2, 5, 0.74], [1413, 1, 5, 0.95], [21806, 1, 5, 1.0], [2497, 2, 5, 1.52], [8286, 1, 5, 0.93], [11150, 2, 6, 0.92], [432, 1, 5, 1.18], [3337, 1, 5, 1.15], [11808, 1, 7, 1.56], [11586, 1, 8, 1.49], [8286, 2, 6, 0.92], [432, 3, 6, 1.08], [9081, 3, 13, 2.02], [566, 2, 6, 0.92], [10408, 1, 5, 1.44], [66, 15, 5, 1.46], [1339, 1, 5, 0.85]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 24, 1.58], [130, 1, 6, 1.07], [11737, 2, 6, 1.37], [2328, 2, 10, 1.55], [2778, 2, 11, 1.76], [143, 2, 7, 1.27], [145, 2, 8, 1.37], [5493, 2, 7, 1.66], [146, 2, 6, 1.43], [5491, 2, 5, 1.4], [8650, 2, 11, 1.79], [11739, 2, 5, 1.26], [615, 2, 7, 1.41], [141, 2, 6, 1.3], [326, 2, 7, 0.76], [205, 2, 5, 0.9], [434, 2, 5, 0.75], [8853, 2, 12, 1.7], [11838, 2, 8, 1.6], [11681, 2, 15, 1.7], [159, 1, 12, 1.15], [1005, 2, 5, 0.76], [589, 2, 7, 1.18], [1504, 2, 8, 1.59], [435, 2, 5, 0.73], [3, 2, 7, 1.27], [8648, 2, 6, 1.52], [8915, 2, 7, 1.18], [6936, 2, 14, 1.69], [378, 2, 5, 1.44], [2912, 1, 5, 0.96], [1446, 2, 5, 1.12], [2776, 2, 6, 1.43], [3478, 2, 7, 0.76], [140, 2, 5, 0.98], [5165, 1, 5, 1.22], [20252, 2, 5, 1.49], [1243, 2, 6, 1.3], [2497, 2, 6, 1.47], [18964, 1, 5, 0.66], [6097, 29, 5, 1.43], [3670, 2, 9, 1.77], [8938, 2, 5, 1.06], [7004, 1, 6, 1.07], [1429, 2, 5, 1.1], [8649, 2, 5, 1.4], [1007, 2, 8, 0.83], [565, 2, 7, 1.01], [59, 3, 8, 0.93], [20256, 2, 5, 1.45], [6097, 80, 5, 1.36], [2774, 2, 6, 1.76], [1126, 2, 6, 0.88], [1049, 2, 5, 0.94], [13263, 29, 5, 1.4], [13260, 29, 5, 1.43], [74, 1, 5, 1.53], [3674, 2, 8, 1.64], [8283, 1, 5, 1.0], [13258, 29, 5, 1.49], [9081, 3, 12, 1.59], [13034, 1, 5, 1.34], [3576, 29, 5, 1.3], [7629, 1, 5, 1.21], [11158, 1, 23, 1.43], [22316, 3, 6, 1.22], [114, 3, 5, 1.18], [12224, 1, 5, 0.96], [2331, 1, 5, 1.19], [2322, 2, 5, 0.86], [2326, 2, 5, 0.89], [2991, 1, 5, 1.34], [11953, 1, 8, 1.48], [214, 3, 14, 0.72], [2991, 3, 5, 1.59], [10411, 1, 5, 1.13], [13259, 29, 5, 1.24], [2419, 29, 5, 1.32], [11954, 1, 6, 1.54], [159, 3, 9, 0.86], [1548, 1, 5, 1.44], [11772, 1, 8, 1.56], [22317, 3, 6, 1.22], [1886, 2, 5, 1.05], [186, 3, 12, 0.57], [13033, 1, 5, 1.37], [159, 16, 5, 0.97], [13034, 3, 7, 1.79], [3575, 29, 5, 1.2], [11769, 1, 5, 1.44], [6359, 10, 14, 0.72], [11677, 1, 9, 1.39], [59, 1, 5, 0.72], [11767, 1, 5, 1.46], [335, 3, 16, 0.75], [8285, 1, 5, 1.1], [6359, 1, 5, 0.84], [5208, 3, 7, 0.84], [13033, 3, 8, 1.9], [10411, 10, 9, 0.95]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 14, 1.59], [130, 1, 5, 0.99], [615, 2, 8, 1.58], [326, 2, 6, 1.09], [151, 1, 5, 1.02], [5493, 2, 7, 1.6], [616, 2, 7, 1.64], [2778, 2, 6, 1.51], [2327, 2, 6, 1.47], [144, 2, 5, 1.43], [5165, 1, 5, 1.19], [205, 2, 5, 0.93], [8915, 2, 7, 0.88], [589, 2, 7, 1.29], [7004, 1, 5, 0.95], [159, 1, 8, 1.02], [434, 2, 7, 0.93], [8648, 2, 6, 1.65], [593, 2, 9, 1.43], [1504, 2, 7, 1.59], [3893, 1, 5, 1.48], [12269, 2, 5, 1.26], [146, 2, 5, 1.45], [624, 2, 6, 1.64], [11737, 2, 5, 1.29], [88, 10, 16, 1.26], [2328, 2, 5, 1.47], [8650, 2, 5, 1.43], [141, 2, 5, 1.27], [5491, 2, 5, 1.43], [3889, 1, 5, 1.47], [583, 2, 5, 0.83], [6936, 2, 13, 1.7], [378, 2, 5, 1.45], [12271, 2, 5, 1.29], [12224, 1, 5, 1.27], [2775, 2, 5, 1.54], [8938, 2, 6, 0.67], [3577, 29, 5, 1.19], [140, 2, 5, 0.96], [3, 2, 5, 1.24], [6496, 1, 5, 1.44], [11739, 2, 5, 1.27], [8853, 2, 10, 1.59], [13028, 3, 5, 1.48], [3576, 29, 5, 1.36], [9, 1, 5, 1.13], [2776, 2, 5, 1.48], [9507, 3, 5, 1.3], [11685, 2, 12, 1.72], [2497, 2, 5, 1.51], [1446, 2, 5, 1.19], [8649, 2, 6, 1.7], [435, 2, 7, 0.89], [1429, 2, 5, 1.19], [33, 1, 5, 0.97], [3575, 29, 5, 1.36], [1007, 2, 7, 0.83], [1656, 2, 5, 1.21], [10721, 29, 5, 1.31], [6494, 1, 5, 1.17], [94, 4, 5, 1.5], [1886, 2, 9, 1.27], [20252, 2, 5, 1.49], [8939, 2, 5, 0.73], [346, 1, 5, 1.19], [1006, 2, 5, 1.23], [584, 2, 5, 0.85], [12212, 29, 5, 1.08], [214, 3, 12, 0.66], [5165, 2, 8, 0.96], [336, 15, 5, 0.92], [11953, 1, 6, 1.53], [1654, 2, 5, 1.2], [159, 3, 8, 0.86], [1126, 2, 5, 1.21], [88, 1, 5, 1.12], [436, 2, 5, 0.64], [3577, 25, 5, 1.23], [21793, 1, 7, 1.39], [5490, 2, 5, 0.92], [20256, 2, 5, 1.4], [37, 1, 5, 0.96], [35, 1, 5, 0.96], [1274, 1, 5, 1.45], [11772, 1, 7, 1.64], [11426, 29, 5, 1.12], [2108, 1, 5, 0.97], [2104, 3, 9, 0.76], [11952, 1, 8, 1.51], [3576, 25, 5, 1.35], [2774, 2, 5, 1.54], [5208, 3, 7, 1.25], [2104, 1, 5, 0.99], [972, 1, 5, 0.96], [11769, 1, 5, 1.5], [159, 16, 5, 0.95], [10408, 1, 5, 1.11], [94, 1, 5, 1.42], [9507, 1, 5, 1.2]]</t>
+  </si>
+  <si>
+    <t>[[130, 1, 5, 0.99], [616, 2, 11, 1.68], [326, 2, 6, 0.79], [615, 2, 10, 1.57], [151, 1, 5, 0.99], [6935, 2, 13, 1.73], [589, 2, 7, 1.16], [5493, 2, 7, 1.58], [2328, 2, 6, 1.58], [624, 2, 10, 1.61], [305, 2, 5, 1.22], [2778, 2, 6, 1.67], [8915, 2, 7, 0.78], [7004, 1, 5, 0.79], [205, 2, 5, 1.05], [159, 1, 9, 0.96], [143, 2, 5, 1.28], [9760, 29, 5, 1.19], [593, 2, 8, 1.33], [5165, 1, 5, 1.17], [8648, 2, 7, 1.64], [144, 2, 5, 1.26], [5491, 2, 5, 1.41], [8650, 2, 7, 1.63], [2775, 2, 5, 1.48], [11737, 2, 5, 1.28], [140, 2, 6, 1.01], [434, 2, 6, 0.89], [1446, 2, 5, 1.08], [88, 10, 14, 1.27], [8853, 2, 10, 1.52], [2776, 2, 5, 1.48], [3893, 1, 5, 1.26], [146, 2, 5, 1.28], [9, 1, 5, 1.02], [3, 2, 5, 1.25], [145, 2, 5, 1.24], [8938, 2, 6, 0.59], [12224, 1, 5, 0.95], [6936, 2, 11, 1.69], [3576, 29, 5, 1.26], [20252, 2, 7, 1.62], [1504, 2, 6, 1.48], [1429, 2, 5, 1.08], [1656, 2, 6, 1.3], [20256, 2, 7, 1.54], [229, 1, 5, 1.43], [61, 3, 5, 0.99], [8649, 2, 5, 1.46], [6496, 1, 5, 1.42], [9507, 3, 5, 1.29], [3575, 29, 5, 1.23], [2497, 2, 5, 1.45], [11739, 2, 5, 1.3], [1654, 2, 5, 1.11], [9372, 1, 12, 1.54], [3577, 29, 5, 0.95], [1007, 2, 7, 0.75], [12870, 1, 6, 1.49], [823, 1, 5, 1.43], [584, 2, 5, 0.78], [9491, 1, 6, 1.42], [88, 1, 5, 1.21], [11426, 29, 5, 1.14], [66, 1, 5, 1.29], [5434, 1, 5, 0.73], [9507, 1, 5, 1.22], [13028, 3, 5, 1.47], [5165, 2, 10, 1.25], [159, 3, 7, 0.73], [5490, 2, 5, 0.93], [126, 2, 5, 0.59], [8939, 2, 5, 0.64], [10149, 3, 16, 1.52], [8651, 2, 5, 1.46], [11425, 29, 5, 1.08], [2774, 2, 5, 1.41], [1126, 2, 5, 1.01], [5208, 3, 8, 0.84], [1274, 1, 5, 1.41], [20258, 2, 7, 1.51], [3576, 25, 5, 1.24], [426, 1, 8, 0.59], [11770, 1, 6, 1.5], [159, 16, 5, 0.94], [1548, 1, 5, 1.39], [2331, 1, 5, 1.17], [21793, 1, 7, 1.48], [3577, 25, 5, 0.94], [74, 1, 5, 1.48], [10411, 1, 5, 1.38], [10408, 1, 5, 1.41], [12369, 1, 5, 1.55], [3575, 25, 5, 1.26], [66, 16, 5, 1.16], [6931, 2, 5, 1.01], [8677, 3, 6, 1.36], [105, 3, 5, 1.1], [8286, 1, 5, 0.91], [10407, 1, 5, 1.04]]</t>
   </si>
 </sst>
 </file>

--- a/QD_upload.xlsx
+++ b/QD_upload.xlsx
@@ -52,46 +52,46 @@
     <t>Delta WestQD</t>
   </si>
   <si>
-    <t>02/11/2025 13:11</t>
-  </si>
-  <si>
-    <t>02/11/2025 16:59</t>
-  </si>
-  <si>
-    <t>[[326, 2, 4, 0.27], [6935, 2, 8, 0.51], [151, 1, 3, 0.27], [589, 2, 4, 0.33], [305, 2, 3, 0.5], [8915, 2, 4, 0.33], [205, 2, 3, 0.46], [2328, 2, 4, 0.69], [2778, 2, 4, 0.69], [143, 2, 3, 0.52], [593, 2, 5, 0.34], [144, 2, 3, 0.63], [6936, 2, 5, 0.46], [145, 2, 3, 0.63], [159, 1, 3, 0.3], [206, 2, 3, 0.46], [20252, 2, 3, 0.72], [146, 2, 3, 0.63], [19925, 2, 3, 0.72], [7004, 1, 3, 0.46], [20258, 2, 3, 0.72], [1490, 1, 3, 0.72], [11737, 2, 3, 0.69], [76, 2, 3, 0.72], [107, 2, 3, 0.6], [141, 2, 3, 0.59], [8648, 2, 4, 0.69], [8650, 2, 3, 0.6], [8938, 2, 4, 0.39], [1654, 2, 3, 0.6], [79, 1, 3, 0.6], [1446, 2, 3, 0.54], [10148, 1, 3, 0.39], [1007, 2, 5, 0.28], [8853, 2, 4, 0.44], [11739, 2, 3, 0.71], [12224, 1, 3, 0.46], [1656, 2, 3, 0.6], [1243, 2, 3, 0.72], [1504, 2, 4, 0.69], [1429, 2, 3, 0.54], [1006, 2, 4, 0.55], [2912, 1, 3, 0.48], [88, 10, 6, 0.33], [308, 1, 4, 0.69], [74, 1, 3, 0.72], [8649, 2, 3, 0.72], [20256, 2, 3, 0.72], [229, 1, 3, 0.72], [12225, 1, 3, 0.46], [2991, 3, 3, 0.72], [9507, 3, 3, 0.6], [5165, 1, 3, 0.6], [10149, 3, 14, 0.59], [20255, 2, 3, 0.71], [94, 4, 3, 0.72], [615, 2, 4, 0.4], [2991, 1, 3, 0.72], [434, 2, 4, 0.32], [167, 3, 3, 0.47], [2775, 2, 3, 0.72], [1655, 2, 3, 0.6], [9829, 3, 3, 0.42], [8939, 2, 3, 0.39], [7036, 1, 3, 0.6], [167, 1, 3, 0.48], [12870, 1, 3, 0.6], [1766, 2, 3, 0.48], [616, 2, 4, 0.4], [8651, 2, 3, 0.72], [13260, 29, 3, 0.72], [18, 1, 3, 0.36], [1126, 2, 3, 0.54], [11454, 2, 4, 0.48], [126, 2, 3, 0.42], [974, 3, 4, 0.8], [9507, 1, 3, 0.6], [3670, 2, 4, 0.69], [3016, 1, 4, 0.69], [5208, 3, 4, 0.23], [2726, 3, 3, 0.72], [9372, 1, 3, 0.4], [5435, 1, 3, 0.37], [3016, 68, 3, 0.72], [168, 3, 4, 0.43], [336, 15, 3, 0.48], [2497, 2, 3, 0.72], [8677, 3, 4, 0.7], [624, 2, 4, 0.4], [22554, 10, 8, 0.52], [168, 1, 3, 0.48], [12369, 1, 3, 0.72], [8104, 1, 3, 0.4], [335, 3, 9, 0.46], [2776, 2, 3, 0.72], [88, 1, 3, 0.6], [10149, 1, 3, 0.72], [1766, 25, 3, 0.48], [110, 4, 3, 0.47], [432, 3, 4, 0.57]]</t>
-  </si>
-  <si>
-    <t>[[326, 2, 4, 0.3], [130, 1, 3, 0.48], [6935, 2, 8, 0.48], [3, 2, 4, 0.49], [589, 2, 5, 0.43], [2327, 2, 4, 0.6], [2328, 2, 4, 0.69], [8915, 2, 4, 0.3], [362, 2, 3, 0.62], [75, 2, 3, 0.62], [140, 2, 3, 0.48], [205, 2, 3, 0.46], [76, 2, 3, 0.72], [159, 1, 4, 0.33], [305, 2, 3, 0.53], [2778, 2, 4, 0.69], [10530, 29, 3, 0.4], [141, 2, 3, 0.59], [6936, 2, 5, 0.43], [593, 2, 5, 0.47], [66, 1, 3, 0.62], [412, 1, 3, 0.59], [11737, 2, 3, 0.69], [20252, 2, 3, 0.72], [1490, 1, 3, 0.72], [206, 2, 3, 0.46], [79, 1, 3, 0.72], [8648, 2, 4, 0.69], [144, 2, 3, 0.66], [7004, 1, 3, 0.46], [8650, 2, 4, 0.69], [146, 2, 3, 0.66], [96, 1, 3, 0.6], [1007, 2, 5, 0.26], [143, 2, 3, 0.66], [8853, 2, 4, 0.4], [856, 1, 3, 0.6], [1446, 2, 3, 0.54], [88, 10, 8, 0.4], [8938, 2, 4, 0.36], [1654, 2, 3, 0.56], [145, 2, 3, 0.66], [20258, 2, 3, 0.72], [1429, 2, 3, 0.54], [10149, 3, 14, 0.59], [308, 1, 4, 0.6], [1656, 2, 3, 0.56], [12224, 1, 3, 0.46], [9507, 3, 3, 0.6], [1504, 2, 4, 0.69], [8649, 2, 4, 0.8], [10148, 1, 3, 0.37], [1006, 2, 4, 0.55], [7036, 1, 3, 0.51], [96, 11, 15, 0.51], [167, 3, 4, 0.46], [167, 1, 3, 0.48], [229, 1, 3, 0.72], [434, 2, 4, 0.32], [2991, 3, 3, 0.72], [583, 2, 3, 0.36], [13260, 29, 3, 0.72], [12661, 1, 3, 0.72], [20256, 2, 3, 0.72], [615, 2, 4, 0.4], [214, 3, 9, 0.32], [1703, 2, 3, 0.43], [74, 1, 3, 0.72], [9507, 1, 3, 0.6], [8651, 2, 3, 0.72], [10149, 1, 3, 0.72], [584, 2, 3, 0.37], [12870, 1, 3, 0.51], [20255, 2, 3, 0.6], [3495, 3, 14, 0.37], [1655, 2, 3, 0.56], [8939, 2, 3, 0.36], [2912, 1, 3, 0.48], [5165, 1, 3, 0.6], [66, 16, 3, 0.62], [168, 3, 4, 0.43], [2991, 1, 3, 0.72], [616, 2, 3, 0.4], [126, 2, 3, 0.35], [8104, 1, 3, 0.37], [335, 3, 9, 0.41], [3016, 68, 3, 0.72], [2775, 2, 3, 0.72], [168, 1, 3, 0.48], [2322, 2, 3, 0.72], [12225, 1, 3, 0.46], [88, 1, 3, 0.6], [585, 2, 3, 0.36], [336, 15, 3, 0.48], [435, 2, 3, 0.38], [5493, 2, 3, 0.51], [9613, 1, 3, 0.36], [1126, 2, 3, 0.54], [12369, 1, 3, 0.72], [9372, 1, 3, 0.4]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 8, 0.4], [9760, 29, 3, 0.5], [2327, 2, 4, 0.53], [326, 2, 4, 0.48], [2778, 2, 4, 0.48], [362, 2, 4, 0.58], [130, 1, 3, 0.48], [589, 2, 4, 0.5], [8648, 2, 4, 0.53], [141, 2, 4, 0.59], [2328, 2, 3, 0.45], [8853, 2, 4, 0.4], [8650, 2, 4, 0.6], [2775, 2, 4, 0.6], [5493, 2, 3, 0.51], [140, 2, 3, 0.48], [159, 1, 3, 0.37], [6936, 2, 5, 0.4], [2776, 2, 4, 0.6], [8649, 2, 3, 0.45], [413, 1, 3, 0.71], [615, 2, 3, 0.51], [5491, 2, 3, 0.72], [361, 2, 3, 0.65], [593, 2, 4, 0.45], [1446, 2, 3, 0.54], [7004, 1, 3, 0.46], [7036, 1, 3, 0.51], [1656, 2, 3, 0.6], [616, 2, 3, 0.51], [11737, 2, 3, 0.67], [1429, 2, 3, 0.54], [434, 2, 3, 0.2], [1654, 2, 3, 0.6], [8915, 2, 4, 0.43], [6494, 1, 3, 0.5], [20258, 2, 3, 0.72], [523, 2, 3, 0.66], [3576, 29, 3, 0.6], [583, 2, 3, 0.43], [12269, 2, 3, 0.47], [66, 1, 3, 0.72], [1490, 1, 3, 0.72], [12224, 1, 3, 0.48], [9372, 1, 4, 0.53], [20252, 2, 3, 0.72], [9507, 3, 3, 0.6], [3577, 29, 3, 0.48], [9507, 1, 3, 0.43], [3, 2, 3, 0.6], [3576, 25, 3, 0.71], [9910, 29, 3, 0.62], [8938, 2, 4, 0.38], [3575, 29, 3, 0.71], [624, 2, 3, 0.45], [11952, 1, 3, 0.4], [11681, 2, 5, 0.4], [159, 3, 5, 0.46], [11738, 2, 3, 0.69], [11772, 1, 3, 0.45], [11426, 25, 3, 0.49], [11426, 29, 3, 0.49], [3577, 25, 3, 0.48], [3670, 2, 4, 0.69], [1126, 2, 3, 0.51], [3575, 25, 3, 0.7], [1413, 15, 3, 0.48], [21793, 1, 3, 0.48], [229, 1, 3, 0.72], [11150, 1, 3, 0.48], [20256, 2, 3, 0.72], [9910, 25, 3, 0.62], [214, 3, 9, 0.3], [8283, 1, 3, 0.5], [66, 16, 3, 0.72], [159, 16, 3, 0.6], [126, 2, 3, 0.35], [2438, 1, 3, 0.48], [2160, 68, 3, 0.6], [1413, 16, 3, 0.48], [1801, 1, 3, 0.68], [21809, 1, 3, 0.54], [5208, 3, 4, 0.48], [8939, 2, 3, 0.37], [1413, 1, 3, 0.48], [21806, 1, 3, 0.51], [2497, 2, 3, 0.72], [8286, 1, 3, 0.47], [11150, 2, 4, 0.45], [432, 1, 3, 0.6], [3337, 1, 3, 0.59], [11808, 1, 4, 0.69], [11586, 1, 4, 0.6], [8286, 2, 4, 0.46], [432, 3, 4, 0.59], [9081, 3, 6, 0.55], [566, 2, 4, 0.48], [10408, 1, 3, 0.72], [66, 15, 3, 0.72], [1339, 1, 3, 0.46]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 8, 0.4], [130, 1, 3, 0.4], [11737, 2, 3, 0.52], [2328, 2, 4, 0.48], [2778, 2, 4, 0.44], [143, 2, 4, 0.59], [145, 2, 4, 0.53], [5493, 2, 3, 0.51], [146, 2, 3, 0.54], [5491, 2, 3, 0.71], [8650, 2, 4, 0.44], [11739, 2, 3, 0.65], [615, 2, 4, 0.65], [141, 2, 3, 0.49], [326, 2, 4, 0.33], [205, 2, 3, 0.44], [434, 2, 3, 0.36], [8853, 2, 4, 0.4], [11838, 2, 4, 0.6], [11681, 2, 5, 0.4], [159, 1, 4, 0.27], [1005, 2, 3, 0.38], [589, 2, 4, 0.5], [1504, 2, 4, 0.6], [435, 2, 3, 0.36], [3, 2, 4, 0.53], [8648, 2, 4, 0.8], [8915, 2, 4, 0.49], [6936, 2, 5, 0.43], [378, 2, 3, 0.72], [2912, 1, 3, 0.48], [1446, 2, 3, 0.54], [2776, 2, 4, 0.8], [3478, 2, 3, 0.26], [140, 2, 3, 0.48], [5165, 1, 3, 0.6], [20252, 2, 3, 0.72], [1243, 2, 4, 0.72], [2497, 2, 4, 0.8], [18964, 1, 3, 0.34], [6097, 29, 3, 0.72], [3670, 2, 4, 0.53], [8938, 2, 3, 0.51], [7004, 1, 3, 0.4], [1429, 2, 3, 0.54], [8649, 2, 3, 0.72], [1007, 2, 4, 0.29], [565, 2, 4, 0.42], [59, 3, 4, 0.29], [20256, 2, 3, 0.72], [6097, 80, 3, 0.71], [2774, 2, 3, 0.6], [1126, 2, 4, 0.47], [1049, 2, 3, 0.47], [13263, 29, 3, 0.72], [13260, 29, 3, 0.72], [74, 1, 3, 0.72], [3674, 2, 4, 0.6], [8283, 1, 3, 0.5], [13258, 29, 3, 0.72], [9081, 3, 8, 0.8], [13034, 1, 3, 0.72], [3576, 29, 3, 0.63], [7629, 1, 3, 0.59], [11158, 1, 8, 0.36], [22316, 3, 4, 0.62], [114, 3, 3, 0.55], [12224, 1, 3, 0.46], [2331, 1, 3, 0.6], [2322, 2, 3, 0.44], [2326, 2, 3, 0.43], [2991, 1, 3, 0.72], [11953, 1, 4, 0.6], [214, 3, 9, 0.3], [2991, 3, 3, 0.72], [10411, 1, 3, 0.54], [13259, 29, 3, 0.6], [2419, 29, 3, 0.72], [11954, 1, 3, 0.6], [159, 3, 5, 0.36], [1548, 1, 3, 0.72], [11772, 1, 3, 0.45], [22317, 3, 4, 0.62], [1886, 2, 3, 0.53], [186, 3, 8, 0.31], [13033, 1, 3, 0.72], [159, 16, 3, 0.48], [13034, 3, 4, 0.69], [3575, 29, 3, 0.62], [11769, 1, 3, 0.72], [6359, 10, 9, 0.28], [11677, 1, 4, 0.47], [59, 1, 3, 0.39], [11767, 1, 3, 0.72], [335, 3, 9, 0.26], [8285, 1, 3, 0.6], [6359, 1, 3, 0.39], [5208, 3, 4, 0.33], [13033, 3, 4, 0.6], [10411, 10, 6, 0.38]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 6, 0.51], [130, 1, 3, 0.48], [615, 2, 4, 0.57], [326, 2, 3, 0.39], [151, 1, 3, 0.48], [5493, 2, 3, 0.51], [616, 2, 3, 0.51], [2778, 2, 4, 0.8], [2327, 2, 4, 0.8], [144, 2, 3, 0.72], [5165, 1, 3, 0.6], [205, 2, 3, 0.45], [8915, 2, 4, 0.36], [589, 2, 4, 0.54], [7004, 1, 3, 0.47], [159, 1, 3, 0.3], [434, 2, 3, 0.26], [8648, 2, 3, 0.6], [593, 2, 4, 0.45], [1504, 2, 4, 0.69], [3893, 1, 3, 0.72], [12269, 2, 3, 0.63], [146, 2, 3, 0.72], [624, 2, 3, 0.59], [11737, 2, 3, 0.63], [88, 10, 8, 0.4], [2328, 2, 3, 0.72], [8650, 2, 3, 0.72], [141, 2, 3, 0.62], [5491, 2, 3, 0.72], [3889, 1, 3, 0.72], [583, 2, 3, 0.42], [6936, 2, 5, 0.46], [378, 2, 3, 0.72], [12271, 2, 3, 0.65], [12224, 1, 3, 0.61], [2775, 2, 3, 0.72], [8938, 2, 4, 0.36], [3577, 29, 3, 0.6], [140, 2, 3, 0.48], [3, 2, 3, 0.6], [6496, 1, 3, 0.72], [11739, 2, 3, 0.65], [8853, 2, 4, 0.48], [13028, 3, 3, 0.72], [3576, 29, 3, 0.68], [9, 1, 3, 0.54], [2776, 2, 3, 0.72], [9507, 3, 3, 0.6], [11685, 2, 4, 0.4], [2497, 2, 3, 0.72], [1446, 2, 3, 0.59], [8649, 2, 3, 0.6], [435, 2, 3, 0.27], [1429, 2, 3, 0.59], [33, 1, 3, 0.47], [3575, 29, 3, 0.67], [1007, 2, 4, 0.35], [1656, 2, 3, 0.6], [10721, 29, 3, 0.6], [6494, 1, 3, 0.6], [94, 4, 3, 0.72], [1886, 2, 3, 0.29], [20252, 2, 3, 0.72], [8939, 2, 3, 0.36], [346, 1, 3, 0.6], [1006, 2, 3, 0.61], [584, 2, 3, 0.43], [12212, 29, 3, 0.53], [214, 3, 8, 0.37], [5165, 2, 5, 0.51], [336, 15, 3, 0.48], [11953, 1, 3, 0.6], [1654, 2, 3, 0.6], [159, 3, 5, 0.36], [1126, 2, 3, 0.58], [88, 1, 3, 0.6], [436, 2, 3, 0.33], [3577, 25, 3, 0.6], [21793, 1, 4, 0.69], [5490, 2, 3, 0.48], [20256, 2, 3, 0.72], [37, 1, 3, 0.47], [35, 1, 3, 0.48], [1274, 1, 3, 0.72], [11772, 1, 3, 0.51], [11426, 29, 3, 0.57], [2108, 1, 3, 0.48], [2104, 3, 6, 0.35], [11952, 1, 3, 0.45], [3576, 25, 3, 0.67], [2774, 2, 3, 0.72], [5208, 3, 4, 0.53], [2104, 1, 3, 0.48], [972, 1, 3, 0.48], [11769, 1, 3, 0.72], [159, 16, 3, 0.48], [10408, 1, 3, 0.54], [94, 1, 3, 0.72], [9507, 1, 3, 0.6]]</t>
-  </si>
-  <si>
-    <t>[[130, 1, 3, 0.48], [616, 2, 4, 0.44], [326, 2, 4, 0.43], [615, 2, 4, 0.48], [151, 1, 3, 0.48], [6935, 2, 5, 0.46], [589, 2, 4, 0.49], [5493, 2, 3, 0.51], [2328, 2, 3, 0.6], [624, 2, 4, 0.48], [305, 2, 3, 0.6], [2778, 2, 3, 0.6], [8915, 2, 4, 0.33], [7004, 1, 3, 0.4], [205, 2, 3, 0.5], [159, 1, 3, 0.27], [143, 2, 3, 0.63], [9760, 29, 3, 0.6], [593, 2, 4, 0.49], [5165, 1, 3, 0.6], [8648, 2, 3, 0.51], [144, 2, 3, 0.63], [5491, 2, 3, 0.72], [8650, 2, 3, 0.51], [2775, 2, 3, 0.72], [11737, 2, 3, 0.66], [140, 2, 3, 0.4], [434, 2, 3, 0.3], [1446, 2, 3, 0.53], [88, 10, 6, 0.34], [8853, 2, 4, 0.48], [2776, 2, 3, 0.72], [3893, 1, 3, 0.61], [146, 2, 3, 0.63], [9, 1, 3, 0.5], [3, 2, 3, 0.6], [145, 2, 3, 0.63], [8938, 2, 4, 0.32], [12224, 1, 3, 0.46], [6936, 2, 4, 0.44], [3576, 29, 3, 0.62], [20252, 2, 3, 0.51], [1504, 2, 4, 0.8], [1429, 2, 3, 0.53], [1656, 2, 3, 0.47], [20256, 2, 3, 0.51], [229, 1, 3, 0.72], [61, 3, 3, 0.48], [8649, 2, 3, 0.72], [6496, 1, 3, 0.72], [9507, 3, 3, 0.6], [3575, 29, 3, 0.61], [2497, 2, 3, 0.72], [11739, 2, 3, 0.68], [1654, 2, 3, 0.56], [9372, 1, 4, 0.4], [3577, 29, 3, 0.48], [1007, 2, 4, 0.33], [12870, 1, 3, 0.6], [823, 1, 3, 0.72], [584, 2, 3, 0.39], [9491, 1, 3, 0.6], [88, 1, 3, 0.6], [11426, 29, 3, 0.56], [66, 1, 3, 0.6], [5434, 1, 3, 0.37], [9507, 1, 3, 0.6], [13028, 3, 3, 0.72], [5165, 2, 5, 0.4], [159, 3, 5, 0.4], [5490, 2, 3, 0.48], [126, 2, 3, 0.3], [8939, 2, 3, 0.32], [10149, 3, 9, 0.51], [8651, 2, 3, 0.72], [11425, 29, 3, 0.53], [2774, 2, 3, 0.72], [1126, 2, 3, 0.49], [5208, 3, 4, 0.3], [1274, 1, 3, 0.72], [20258, 2, 3, 0.51], [3576, 25, 3, 0.61], [426, 1, 3, 0.19], [11770, 1, 3, 0.6], [159, 16, 3, 0.48], [1548, 1, 3, 0.72], [2331, 1, 3, 0.6], [21793, 1, 3, 0.51], [3577, 25, 3, 0.48], [74, 1, 3, 0.72], [10411, 1, 3, 0.72], [10408, 1, 3, 0.72], [12369, 1, 3, 0.72], [3575, 25, 3, 0.61], [66, 16, 3, 0.6], [6931, 2, 3, 0.53], [8677, 3, 4, 0.72], [105, 3, 3, 0.51], [8286, 1, 3, 0.47], [10407, 1, 3, 0.52]]</t>
-  </si>
-  <si>
-    <t>[[326, 2, 9, 0.82], [6935, 2, 19, 1.62], [151, 1, 9, 1.2], [589, 2, 11, 1.65], [305, 2, 6, 1.43], [8915, 2, 9, 1.06], [205, 2, 5, 0.98], [2328, 2, 7, 1.71], [2778, 2, 7, 1.76], [143, 2, 6, 1.5], [593, 2, 13, 1.48], [144, 2, 5, 1.27], [6936, 2, 13, 1.89], [145, 2, 5, 1.28], [159, 1, 8, 0.98], [206, 2, 5, 0.94], [20252, 2, 5, 1.49], [146, 2, 5, 1.28], [19925, 2, 5, 1.47], [7004, 1, 5, 0.92], [20258, 2, 5, 1.45], [1490, 1, 5, 1.44], [11737, 2, 5, 1.38], [76, 2, 5, 1.46], [107, 2, 5, 1.27], [141, 2, 5, 1.25], [8648, 2, 7, 1.58], [8650, 2, 6, 1.66], [8938, 2, 6, 0.75], [1654, 2, 5, 1.21], [79, 1, 5, 1.2], [1446, 2, 5, 1.13], [10148, 1, 5, 0.75], [1007, 2, 9, 0.68], [8853, 2, 11, 1.78], [11739, 2, 5, 1.42], [12224, 1, 5, 0.96], [1656, 2, 5, 1.22], [1243, 2, 5, 1.51], [1504, 2, 7, 1.64], [1429, 2, 5, 1.13], [1006, 2, 6, 1.1], [2912, 1, 5, 0.95], [88, 10, 14, 1.29], [308, 1, 7, 1.53], [74, 1, 5, 1.47], [8649, 2, 5, 1.47], [20256, 2, 5, 1.45], [229, 1, 5, 1.43], [12225, 1, 5, 0.93], [2991, 3, 5, 1.52], [9507, 3, 5, 1.36], [5165, 1, 5, 1.24], [10149, 3, 20, 1.01], [20255, 2, 5, 1.49], [94, 4, 5, 1.44], [615, 2, 12, 1.53], [2991, 1, 5, 1.39], [434, 2, 7, 0.75], [167, 3, 5, 0.98], [2775, 2, 5, 1.47], [1655, 2, 5, 1.19], [9829, 3, 5, 0.86], [8939, 2, 5, 0.8], [7036, 1, 6, 1.49], [167, 1, 5, 0.99], [12870, 1, 6, 1.52], [1766, 2, 5, 0.98], [616, 2, 12, 1.51], [8651, 2, 5, 1.46], [13260, 29, 5, 1.44], [18, 1, 5, 0.72], [1126, 2, 5, 1.1], [11454, 2, 10, 1.65], [126, 2, 5, 0.85], [974, 3, 6, 1.54], [9507, 1, 5, 1.18], [3670, 2, 7, 1.66], [3016, 1, 7, 1.49], [5208, 3, 9, 0.77], [2726, 3, 5, 1.59], [9372, 1, 9, 1.51], [5435, 1, 5, 0.72], [3016, 68, 5, 1.39], [168, 3, 7, 1.04], [336, 15, 5, 0.95], [2497, 2, 5, 1.49], [8677, 3, 6, 1.44], [624, 2, 12, 1.52], [22554, 10, 12, 1.07], [168, 1, 5, 0.94], [12369, 1, 5, 1.49], [8104, 1, 6, 0.97], [335, 3, 15, 1.13], [2776, 2, 5, 1.47], [88, 1, 5, 1.2], [10149, 1, 5, 1.4], [1766, 25, 5, 1.08], [110, 4, 5, 1.03], [432, 3, 6, 1.12]]</t>
-  </si>
-  <si>
-    <t>[[326, 2, 9, 0.94], [130, 1, 5, 0.99], [6935, 2, 20, 1.6], [3, 2, 8, 1.31], [589, 2, 9, 1.05], [2327, 2, 8, 1.67], [2328, 2, 7, 1.66], [8915, 2, 9, 0.96], [362, 2, 5, 1.31], [75, 2, 5, 1.31], [140, 2, 5, 0.96], [205, 2, 5, 0.96], [76, 2, 5, 1.47], [159, 1, 12, 1.49], [305, 2, 5, 1.06], [2778, 2, 7, 1.8], [10530, 29, 9, 1.49], [141, 2, 5, 1.24], [6936, 2, 14, 1.78], [593, 2, 9, 1.13], [66, 1, 5, 1.29], [412, 1, 5, 1.25], [11737, 2, 5, 1.39], [20252, 2, 5, 1.46], [1490, 1, 5, 1.46], [206, 2, 5, 0.93], [79, 1, 5, 1.47], [8648, 2, 7, 1.59], [144, 2, 5, 1.33], [7004, 1, 5, 0.93], [8650, 2, 7, 1.56], [146, 2, 5, 1.33], [96, 1, 5, 1.14], [1007, 2, 10, 0.73], [143, 2, 5, 1.34], [8853, 2, 12, 1.79], [856, 1, 5, 1.19], [1446, 2, 5, 1.13], [88, 10, 16, 1.25], [8938, 2, 6, 0.67], [1654, 2, 5, 1.12], [145, 2, 5, 1.32], [20258, 2, 5, 1.47], [1429, 2, 5, 1.14], [10149, 3, 20, 1.01], [308, 1, 8, 1.48], [1656, 2, 5, 1.12], [12224, 1, 5, 0.94], [9507, 3, 5, 1.39], [1504, 2, 7, 1.65], [8649, 2, 6, 1.53], [10148, 1, 5, 0.72], [1006, 2, 6, 1.12], [7036, 1, 7, 1.47], [96, 11, 21, 0.85], [167, 3, 6, 0.88], [167, 1, 5, 0.94], [229, 1, 5, 1.43], [434, 2, 7, 0.77], [2991, 3, 5, 1.51], [583, 2, 5, 0.73], [13260, 29, 5, 1.47], [12661, 1, 5, 1.46], [20256, 2, 5, 1.44], [615, 2, 12, 1.69], [214, 3, 13, 0.65], [1703, 2, 7, 1.3], [74, 1, 5, 1.44], [9507, 1, 5, 1.21], [8651, 2, 5, 1.47], [10149, 1, 5, 1.4], [584, 2, 5, 0.75], [12870, 1, 7, 1.49], [20255, 2, 6, 1.64], [3495, 3, 20, 0.64], [1655, 2, 5, 1.11], [8939, 2, 5, 0.73], [2912, 1, 5, 0.95], [5165, 1, 5, 1.19], [66, 16, 5, 1.22], [168, 3, 7, 1.04], [2991, 1, 5, 1.41], [616, 2, 9, 1.57], [126, 2, 5, 0.71], [8104, 1, 8, 1.25], [335, 3, 17, 1.28], [3016, 68, 5, 1.44], [2775, 2, 5, 1.51], [168, 1, 5, 0.94], [2322, 2, 5, 1.47], [12225, 1, 5, 0.92], [88, 1, 5, 1.16], [585, 2, 5, 0.71], [336, 15, 5, 0.92], [435, 2, 5, 0.76], [5493, 2, 7, 1.47], [9613, 1, 5, 0.71], [1126, 2, 5, 1.11], [12369, 1, 5, 1.36], [9372, 1, 9, 1.46]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 24, 1.6], [9760, 29, 6, 1.29], [2327, 2, 9, 1.51], [326, 2, 6, 0.89], [2778, 2, 10, 1.61], [362, 2, 7, 1.26], [130, 1, 5, 0.95], [589, 2, 7, 1.2], [8648, 2, 9, 1.54], [141, 2, 7, 1.32], [2328, 2, 8, 1.65], [8853, 2, 12, 1.69], [8650, 2, 8, 1.5], [2775, 2, 8, 1.54], [5493, 2, 7, 1.6], [140, 2, 5, 0.94], [159, 1, 8, 1.34], [6936, 2, 15, 1.61], [2776, 2, 8, 1.56], [8649, 2, 8, 1.63], [413, 1, 5, 1.4], [615, 2, 7, 1.55], [5491, 2, 5, 1.39], [361, 2, 5, 1.3], [593, 2, 9, 1.42], [1446, 2, 5, 1.09], [7004, 1, 5, 0.94], [7036, 1, 7, 1.46], [1656, 2, 5, 1.16], [616, 2, 7, 1.5], [11737, 2, 5, 1.36], [1429, 2, 5, 1.08], [434, 2, 9, 0.85], [1654, 2, 5, 1.16], [8915, 2, 6, 0.8], [6494, 1, 6, 1.3], [20258, 2, 5, 1.44], [523, 2, 5, 1.33], [3576, 29, 6, 1.45], [583, 2, 5, 0.87], [12269, 2, 5, 0.96], [66, 1, 5, 1.38], [1490, 1, 5, 1.49], [12224, 1, 5, 0.99], [9372, 1, 9, 1.47], [20252, 2, 5, 1.4], [9507, 3, 5, 1.26], [3577, 29, 5, 0.97], [9507, 1, 7, 1.33], [3, 2, 5, 1.26], [3576, 25, 5, 1.5], [9910, 29, 5, 1.28], [8938, 2, 6, 0.69], [3575, 29, 5, 1.41], [624, 2, 8, 1.72], [11952, 1, 9, 1.61], [11681, 2, 15, 1.44], [159, 3, 9, 1.16], [11738, 2, 5, 1.39], [11772, 1, 8, 1.57], [11426, 25, 5, 1.02], [11426, 29, 5, 0.98], [3577, 25, 5, 0.93], [3670, 2, 7, 1.62], [1126, 2, 6, 1.33], [3575, 25, 5, 1.42], [1413, 15, 5, 0.93], [21793, 1, 7, 1.5], [229, 1, 5, 1.5], [11150, 1, 5, 0.91], [20256, 2, 5, 1.36], [9910, 25, 5, 1.21], [214, 3, 14, 0.73], [8283, 1, 5, 1.0], [66, 16, 5, 1.41], [159, 16, 5, 1.17], [126, 2, 5, 0.73], [2438, 1, 6, 1.2], [2160, 68, 5, 1.15], [1413, 16, 5, 0.95], [1801, 1, 5, 1.39], [21809, 1, 5, 1.09], [5208, 3, 7, 1.16], [8939, 2, 5, 0.74], [1413, 1, 5, 0.95], [21806, 1, 5, 1.0], [2497, 2, 5, 1.52], [8286, 1, 5, 0.93], [11150, 2, 6, 0.92], [432, 1, 5, 1.18], [3337, 1, 5, 1.15], [11808, 1, 7, 1.56], [11586, 1, 8, 1.49], [8286, 2, 6, 0.92], [432, 3, 6, 1.08], [9081, 3, 13, 2.02], [566, 2, 6, 0.92], [10408, 1, 5, 1.44], [66, 15, 5, 1.46], [1339, 1, 5, 0.85]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 24, 1.58], [130, 1, 6, 1.07], [11737, 2, 6, 1.37], [2328, 2, 10, 1.55], [2778, 2, 11, 1.76], [143, 2, 7, 1.27], [145, 2, 8, 1.37], [5493, 2, 7, 1.66], [146, 2, 6, 1.43], [5491, 2, 5, 1.4], [8650, 2, 11, 1.79], [11739, 2, 5, 1.26], [615, 2, 7, 1.41], [141, 2, 6, 1.3], [326, 2, 7, 0.76], [205, 2, 5, 0.9], [434, 2, 5, 0.75], [8853, 2, 12, 1.7], [11838, 2, 8, 1.6], [11681, 2, 15, 1.7], [159, 1, 12, 1.15], [1005, 2, 5, 0.76], [589, 2, 7, 1.18], [1504, 2, 8, 1.59], [435, 2, 5, 0.73], [3, 2, 7, 1.27], [8648, 2, 6, 1.52], [8915, 2, 7, 1.18], [6936, 2, 14, 1.69], [378, 2, 5, 1.44], [2912, 1, 5, 0.96], [1446, 2, 5, 1.12], [2776, 2, 6, 1.43], [3478, 2, 7, 0.76], [140, 2, 5, 0.98], [5165, 1, 5, 1.22], [20252, 2, 5, 1.49], [1243, 2, 6, 1.3], [2497, 2, 6, 1.47], [18964, 1, 5, 0.66], [6097, 29, 5, 1.43], [3670, 2, 9, 1.77], [8938, 2, 5, 1.06], [7004, 1, 6, 1.07], [1429, 2, 5, 1.1], [8649, 2, 5, 1.4], [1007, 2, 8, 0.83], [565, 2, 7, 1.01], [59, 3, 8, 0.93], [20256, 2, 5, 1.45], [6097, 80, 5, 1.36], [2774, 2, 6, 1.76], [1126, 2, 6, 0.88], [1049, 2, 5, 0.94], [13263, 29, 5, 1.4], [13260, 29, 5, 1.43], [74, 1, 5, 1.53], [3674, 2, 8, 1.64], [8283, 1, 5, 1.0], [13258, 29, 5, 1.49], [9081, 3, 12, 1.59], [13034, 1, 5, 1.34], [3576, 29, 5, 1.3], [7629, 1, 5, 1.21], [11158, 1, 23, 1.43], [22316, 3, 6, 1.22], [114, 3, 5, 1.18], [12224, 1, 5, 0.96], [2331, 1, 5, 1.19], [2322, 2, 5, 0.86], [2326, 2, 5, 0.89], [2991, 1, 5, 1.34], [11953, 1, 8, 1.48], [214, 3, 14, 0.72], [2991, 3, 5, 1.59], [10411, 1, 5, 1.13], [13259, 29, 5, 1.24], [2419, 29, 5, 1.32], [11954, 1, 6, 1.54], [159, 3, 9, 0.86], [1548, 1, 5, 1.44], [11772, 1, 8, 1.56], [22317, 3, 6, 1.22], [1886, 2, 5, 1.05], [186, 3, 12, 0.57], [13033, 1, 5, 1.37], [159, 16, 5, 0.97], [13034, 3, 7, 1.79], [3575, 29, 5, 1.2], [11769, 1, 5, 1.44], [6359, 10, 14, 0.72], [11677, 1, 9, 1.39], [59, 1, 5, 0.72], [11767, 1, 5, 1.46], [335, 3, 16, 0.75], [8285, 1, 5, 1.1], [6359, 1, 5, 0.84], [5208, 3, 7, 0.84], [13033, 3, 8, 1.9], [10411, 10, 9, 0.95]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 14, 1.59], [130, 1, 5, 0.99], [615, 2, 8, 1.58], [326, 2, 6, 1.09], [151, 1, 5, 1.02], [5493, 2, 7, 1.6], [616, 2, 7, 1.64], [2778, 2, 6, 1.51], [2327, 2, 6, 1.47], [144, 2, 5, 1.43], [5165, 1, 5, 1.19], [205, 2, 5, 0.93], [8915, 2, 7, 0.88], [589, 2, 7, 1.29], [7004, 1, 5, 0.95], [159, 1, 8, 1.02], [434, 2, 7, 0.93], [8648, 2, 6, 1.65], [593, 2, 9, 1.43], [1504, 2, 7, 1.59], [3893, 1, 5, 1.48], [12269, 2, 5, 1.26], [146, 2, 5, 1.45], [624, 2, 6, 1.64], [11737, 2, 5, 1.29], [88, 10, 16, 1.26], [2328, 2, 5, 1.47], [8650, 2, 5, 1.43], [141, 2, 5, 1.27], [5491, 2, 5, 1.43], [3889, 1, 5, 1.47], [583, 2, 5, 0.83], [6936, 2, 13, 1.7], [378, 2, 5, 1.45], [12271, 2, 5, 1.29], [12224, 1, 5, 1.27], [2775, 2, 5, 1.54], [8938, 2, 6, 0.67], [3577, 29, 5, 1.19], [140, 2, 5, 0.96], [3, 2, 5, 1.24], [6496, 1, 5, 1.44], [11739, 2, 5, 1.27], [8853, 2, 10, 1.59], [13028, 3, 5, 1.48], [3576, 29, 5, 1.36], [9, 1, 5, 1.13], [2776, 2, 5, 1.48], [9507, 3, 5, 1.3], [11685, 2, 12, 1.72], [2497, 2, 5, 1.51], [1446, 2, 5, 1.19], [8649, 2, 6, 1.7], [435, 2, 7, 0.89], [1429, 2, 5, 1.19], [33, 1, 5, 0.97], [3575, 29, 5, 1.36], [1007, 2, 7, 0.83], [1656, 2, 5, 1.21], [10721, 29, 5, 1.31], [6494, 1, 5, 1.17], [94, 4, 5, 1.5], [1886, 2, 9, 1.27], [20252, 2, 5, 1.49], [8939, 2, 5, 0.73], [346, 1, 5, 1.19], [1006, 2, 5, 1.23], [584, 2, 5, 0.85], [12212, 29, 5, 1.08], [214, 3, 12, 0.66], [5165, 2, 8, 0.96], [336, 15, 5, 0.92], [11953, 1, 6, 1.53], [1654, 2, 5, 1.2], [159, 3, 8, 0.86], [1126, 2, 5, 1.21], [88, 1, 5, 1.12], [436, 2, 5, 0.64], [3577, 25, 5, 1.23], [21793, 1, 7, 1.39], [5490, 2, 5, 0.92], [20256, 2, 5, 1.4], [37, 1, 5, 0.96], [35, 1, 5, 0.96], [1274, 1, 5, 1.45], [11772, 1, 7, 1.64], [11426, 29, 5, 1.12], [2108, 1, 5, 0.97], [2104, 3, 9, 0.76], [11952, 1, 8, 1.51], [3576, 25, 5, 1.35], [2774, 2, 5, 1.54], [5208, 3, 7, 1.25], [2104, 1, 5, 0.99], [972, 1, 5, 0.96], [11769, 1, 5, 1.5], [159, 16, 5, 0.95], [10408, 1, 5, 1.11], [94, 1, 5, 1.42], [9507, 1, 5, 1.2]]</t>
-  </si>
-  <si>
-    <t>[[130, 1, 5, 0.99], [616, 2, 11, 1.68], [326, 2, 6, 0.79], [615, 2, 10, 1.57], [151, 1, 5, 0.99], [6935, 2, 13, 1.73], [589, 2, 7, 1.16], [5493, 2, 7, 1.58], [2328, 2, 6, 1.58], [624, 2, 10, 1.61], [305, 2, 5, 1.22], [2778, 2, 6, 1.67], [8915, 2, 7, 0.78], [7004, 1, 5, 0.79], [205, 2, 5, 1.05], [159, 1, 9, 0.96], [143, 2, 5, 1.28], [9760, 29, 5, 1.19], [593, 2, 8, 1.33], [5165, 1, 5, 1.17], [8648, 2, 7, 1.64], [144, 2, 5, 1.26], [5491, 2, 5, 1.41], [8650, 2, 7, 1.63], [2775, 2, 5, 1.48], [11737, 2, 5, 1.28], [140, 2, 6, 1.01], [434, 2, 6, 0.89], [1446, 2, 5, 1.08], [88, 10, 14, 1.27], [8853, 2, 10, 1.52], [2776, 2, 5, 1.48], [3893, 1, 5, 1.26], [146, 2, 5, 1.28], [9, 1, 5, 1.02], [3, 2, 5, 1.25], [145, 2, 5, 1.24], [8938, 2, 6, 0.59], [12224, 1, 5, 0.95], [6936, 2, 11, 1.69], [3576, 29, 5, 1.26], [20252, 2, 7, 1.62], [1504, 2, 6, 1.48], [1429, 2, 5, 1.08], [1656, 2, 6, 1.3], [20256, 2, 7, 1.54], [229, 1, 5, 1.43], [61, 3, 5, 0.99], [8649, 2, 5, 1.46], [6496, 1, 5, 1.42], [9507, 3, 5, 1.29], [3575, 29, 5, 1.23], [2497, 2, 5, 1.45], [11739, 2, 5, 1.3], [1654, 2, 5, 1.11], [9372, 1, 12, 1.54], [3577, 29, 5, 0.95], [1007, 2, 7, 0.75], [12870, 1, 6, 1.49], [823, 1, 5, 1.43], [584, 2, 5, 0.78], [9491, 1, 6, 1.42], [88, 1, 5, 1.21], [11426, 29, 5, 1.14], [66, 1, 5, 1.29], [5434, 1, 5, 0.73], [9507, 1, 5, 1.22], [13028, 3, 5, 1.47], [5165, 2, 10, 1.25], [159, 3, 7, 0.73], [5490, 2, 5, 0.93], [126, 2, 5, 0.59], [8939, 2, 5, 0.64], [10149, 3, 16, 1.52], [8651, 2, 5, 1.46], [11425, 29, 5, 1.08], [2774, 2, 5, 1.41], [1126, 2, 5, 1.01], [5208, 3, 8, 0.84], [1274, 1, 5, 1.41], [20258, 2, 7, 1.51], [3576, 25, 5, 1.24], [426, 1, 8, 0.59], [11770, 1, 6, 1.5], [159, 16, 5, 0.94], [1548, 1, 5, 1.39], [2331, 1, 5, 1.17], [21793, 1, 7, 1.48], [3577, 25, 5, 0.94], [74, 1, 5, 1.48], [10411, 1, 5, 1.38], [10408, 1, 5, 1.41], [12369, 1, 5, 1.55], [3575, 25, 5, 1.26], [66, 16, 5, 1.16], [6931, 2, 5, 1.01], [8677, 3, 6, 1.36], [105, 3, 5, 1.1], [8286, 1, 5, 0.91], [10407, 1, 5, 1.04]]</t>
+    <t>27/11/2025 13:25</t>
+  </si>
+  <si>
+    <t>28/11/2025 23:59</t>
+  </si>
+  <si>
+    <t>[[305, 2, 14, 0.47], [8672, 2, 22, 0.32], [326, 2, 18, 0.19], [130, 1, 10, 0.16], [3, 2, 13, 0.1], [2049, 3, 20, 0.15], [205, 2, 8, 0.04], [6935, 2, 32, 0.55], [144, 2, 10, 0.51], [143, 2, 11, 0.34], [589, 2, 17, 0.0], [2327, 2, 14, 0.37], [145, 2, 10, 0.42], [8915, 2, 13, 0.0], [146, 2, 9, 0.51], [75, 2, 7, 0.28], [206, 2, 6, 0.03], [593, 2, 16, 0.22], [2778, 2, 11, 0.37], [151, 1, 12, 0.19], [2328, 2, 11, 0.37], [12721, 2, 14, 0.34], [8675, 2, 14, 0.32], [7885, 4, 7, 0.13], [20252, 2, 6, 0.27], [141, 2, 8, 0.27], [8648, 2, 9, 0.43], [2050, 3, 8, 0.19], [1776, 1, 7, 0.38], [6936, 2, 18, 0.55], [5151, 2, 6, 0.4], [2054, 3, 7, 0.19], [8650, 2, 8, 0.43], [362, 2, 9, 0.24], [9507, 3, 4, 0.1], [2057, 3, 7, 0.19], [2055, 3, 6, 0.19], [1777, 1, 7, 0.38], [12224, 1, 6, 0.1], [8938, 2, 6, 0.0], [10, 2, 10, 0.19], [248, 1, 5, 0.14], [76, 2, 5, 0.25], [1446, 2, 5, 0.0], [61, 3, 5, 0.23], [140, 2, 5, 0.18], [7004, 1, 6, 0.11], [990, 2, 7, 0.1], [8649, 2, 6, 0.43], [74, 1, 6, 0.67], [20258, 2, 5, 0.26], [410, 1, 4, 0.55], [13967, 1, 6, 0.28], [1492, 1, 8, 0.37], [88, 10, 16, 0.3], [7886, 4, 6, 0.15], [5081, 2, 7, 0.18], [1429, 2, 5, 0.0], [83, 2, 5, 0.16], [1006, 2, 7, 0.22], [1007, 2, 12, 0.07], [2991, 3, 4, 0.42], [1654, 2, 3, 0.18], [3889, 1, 6, 0.14], [12225, 1, 5, 0.09], [307, 2, 4, 0.47], [7005, 1, 5, 0.11], [411, 2, 4, 0.03], [57, 1, 5, 0.19], [378, 2, 6, 0.43], [1504, 2, 9, 0.48], [1656, 2, 4, 0.18], [3891, 1, 3, 0.16], [10825, 21, 13, 0.23], [13028, 3, 6, 0.44], [11234, 2, 9, 0.23], [5005, 1, 19, 0.26], [3893, 1, 4, 0.17], [13965, 1, 5, 0.23], [10149, 3, 26, 0.26], [7084, 3, 3, 0.26], [412, 1, 5, 0.29], [201, 3, 4, 0.28], [167, 3, 6, 0.24], [11737, 2, 4, 0.22], [21798, 1, 5, 0.17], [361, 2, 6, 0.27], [19925, 2, 5, 0.49], [10574, 3, 8, 0.36], [8853, 2, 14, 0.55], [345, 3, 5, 0.28], [8939, 2, 4, 0.0], [7887, 4, 4, 0.15], [23, 1, 3, 0.03], [1124, 2, 10, 0.23], [5208, 3, 10, 0.13], [6394, 7, 31, 0.0], [11404, 2, 11, 0.17], [168, 3, 6, 0.25], [413, 1, 4, 0.3], [161, 3, 10, 0.29], [5812, 3, 7, 0.35], [152, 21, 3, 0.06], [94, 4, 5, 0.4], [346, 1, 5, 0.25], [346, 3, 4, 0.26], [13962, 1, 4, 0.26], [998, 2, 5, 0.12], [20256, 2, 3, 0.32], [13964, 1, 4, 0.27], [20927, 1, 4, 0.11], [997, 2, 5, 0.13], [35, 1, 3, 0.13], [96, 11, 21, 0.21], [1243, 2, 6, 0.29], [25, 1, 3, 0.24], [10148, 1, 5, 0.17], [84, 2, 4, 0.19], [229, 1, 3, 0.38], [9760, 29, 6, 0.18], [9827, 3, 4, 0.2], [308, 1, 17, 0.38], [8651, 2, 4, 0.42], [33, 1, 7, 0.13], [214, 3, 12, 0.18], [159, 3, 8, 0.16], [335, 3, 16, 0.37], [2049, 1, 3, 0.15], [1126, 2, 5, 0.21], [1490, 1, 5, 0.25], [6569, 7, 25, 0.0], [45, 2, 9, 1.17], [8274, 3, 5, 0.16], [3478, 2, 4, 0.32], [11490, 1, 3, 0.33], [13968, 1, 4, 0.24], [11739, 2, 4, 0.29], [6158, 2, 9, 0.25], [5086, 1, 6, 0.0], [2775, 2, 5, 0.37], [12722, 2, 7, 0.34], [79, 1, 4, 0.23], [432, 3, 4, 0.28], [996, 2, 5, 0.51], [5209, 3, 7, 0.13], [1163, 3, 7, 0.21], [1413, 15, 3, 0.21], [10993, 2, 8, 0.24], [11811, 1, 6, 0.32], [5946, 1, 3, 0.44], [2336, 3, 9, 0.19], [22179, 1, 4, 0.31], [8945, 3, 4, 0.47], [12870, 1, 5, 0.48], [7036, 1, 5, 0.48], [8677, 3, 6, 0.47], [9784, 1, 3, 0.27], [995, 2, 5, 0.59], [11489, 1, 3, 0.33], [14037, 3, 8, 0.16], [1655, 2, 3, 0.4], [59, 3, 9, 0.32], [8635, 3, 5, 0.16], [107, 2, 6, 0.31], [950, 1, 8, 0.26], [1767, 25, 5, 0.22], [414, 1, 4, 0.3], [9690, 1, 3, 0.29], [21269, 3, 4, 1.01], [3495, 3, 18, 0.28], [10631, 2, 4, 0.52], [20255, 2, 5, 0.38], [142, 2, 5, 0.27], [6220, 7, 11, 0.0], [5811, 3, 5, 0.3], [6395, 7, 17, 0.0], [9069, 1, 3, 0.59], [972, 3, 6, 0.22], [523, 2, 5, 0.27], [490, 1, 6, 0.18], [3980, 4, 5, 0.35], [11116, 1, 7, 0.15], [5005, 3, 8, 0.26], [416, 1, 3, 0.3], [1070, 7, 15, 0.25], [11808, 1, 6, 0.26], [415, 1, 4, 0.3], [1080, 3, 4, 1.21], [418, 2, 4, 0.24], [95, 3, 32, 0.96], [8898, 3, 6, 0.67], [161, 1, 9, 0.29], [97, 11, 21, 0.34], [336, 15, 3, 0.16], [34, 1, 3, 0.31], [126, 2, 3, 0.24], [3670, 2, 8, 0.52], [39, 1, 3, 0.31], [110, 4, 4, 0.45], [24, 1, 3, 0.1], [2497, 2, 4, 0.57], [8121, 3, 5, 0.14], [22316, 3, 5, 0.29], [105, 3, 3, 0.16], [60, 3, 9, 0.26], [5813, 3, 5, 0.32], [856, 1, 3, 0.16], [11454, 2, 14, 1.79], [8943, 3, 4, 0.28], [38, 1, 3, 0.31], [5513, 2, 6, 0.17], [11954, 1, 4, 0.27], [6097, 80, 3, 0.46], [1766, 25, 5, 0.19], [147, 1, 4, 0.37], [13034, 3, 7, 0.54], [6805, 1, 5, 0.28], [1414, 15, 3, 0.21], [417, 2, 6, 0.27], [9829, 3, 3, 0.17], [22247, 2, 14, 0.34], [21793, 1, 11, 0.62], [11085, 2, 6, 0.23], [20498, 3, 6, 0.42], [82, 2, 3, 0.18], [974, 3, 5, 0.35], [114, 3, 3, 0.16], [6097, 29, 8, 0.46], [5584, 3, 3, 0.65], [439, 1, 4, 0.4], [20498, 1, 6, 0.0], [9372, 1, 11, 0.12], [330, 3, 4, 0.92], [7567, 3, 3, 0.27], [14017, 3, 4, 0.11], [2703, 3, 5, 0.27], [159, 1, 9, 0.15], [19931, 1, 6, 0.19], [6398, 332, 10, 0.0], [11767, 1, 4, 0.01], [8104, 1, 6, 0.15], [10944, 7, 11, 0.0], [6098, 80, 3, 0.39], [27, 1, 3, 0.07], [11671, 1, 7, 0.4], [1519, 3, 16, 0.18], [6221, 7, 8, 0.0], [6497, 1, 7, 0.37], [823, 1, 7, 0.4], [1091, 1, 3, 0.18], [20649, 1, 3, 0.44], [3456, 3, 4, 0.21], [584, 2, 3, 0.28], [11674, 1, 4, 0.0], [8283, 2, 6, 0.18], [20486, 3, 5, 0.52], [62, 3, 12, 0.3], [9691, 1, 3, 0.29], [955, 2, 6, 0.42], [8286, 2, 5, 0.17], [9964, 2, 4, 0.45], [8120, 3, 4, 0.29], [2424, 80, 5, 0.44], [2160, 68, 3, 0.26], [11738, 2, 3, 0.29], [13260, 29, 3, 0.31], [11794, 2, 6, 0.13], [71, 15, 3, 0.16], [21059, 1, 6, 0.33], [6098, 29, 6, 0.39], [11914, 1, 10, 0.28], [972, 1, 3, 0.22], [5086, 3, 4, 1.43], [524, 1, 3, 0.29], [9828, 3, 3, 0.2], [22317, 3, 5, 0.3], [2776, 2, 5, 0.37], [170, 3, 4, 0.44], [14018, 3, 4, 0.1], [12369, 3, 9, 0.68], [8676, 2, 10, 0.32], [22554, 10, 12, 0.26], [148, 1, 4, 0.37], [9049, 2, 3, 0.3], [10172, 3, 9, 0.21], [286, 3, 4, 0.38], [11769, 1, 4, 0.02], [36, 1, 3, 0.31], [1699, 3, 3, 0.34], [2423, 80, 5, 0.38], [434, 2, 10, 0.42], [2331, 1, 3, 0.34], [93, 11, 17, 0.28], [3900, 3, 3, 0.24], [21060, 1, 3, 0.33], [19932, 1, 5, 0.21], [13484, 1, 3, 0.53], [1661, 3, 3, 0.34], [10407, 10, 9, 1.16], [1703, 2, 7, 0.66], [202, 2, 3, 0.23], [2424, 29, 18, 0.44], [107, 7, 7, 0.31], [7558, 3, 3, 0.1], [470, 1, 3, 0.06], [973, 3, 7, 0.31], [583, 2, 3, 0.27], [10406, 10, 10, 0.33], [590, 15, 3, 0.22], [11081, 3, 4, 0.45], [4203, 1, 5, 0.2], [9082, 3, 26, 0.48], [5083, 2, 6, 0.21], [11770, 1, 8, 0.34], [6218, 7, 6, 0.0], [19971, 3, 4, 0.26], [2912, 1, 9, 0.2], [1339, 3, 14, 0.18], [431, 2, 5, 0.11], [952, 4, 3, 0.51], [6525, 7, 12, 0.0], [12269, 2, 3, 0.27], [11953, 1, 4, 0.64], [14041, 3, 4, 0.14], [1767, 2, 3, 0.22], [20486, 1, 3, 0.0], [12223, 1, 3, 0.3], [11087, 2, 6, 0.23], [3892, 1, 3, 0.37], [11504, 2, 5, 0.24], [9613, 1, 3, 0.19], [2726, 3, 4, 0.48], [949, 10, 10, 0.35], [8944, 3, 3, 0.16], [40, 1, 3, 0.07], [2991, 1, 7, 0.42], [6224, 7, 10, 0.0], [957, 2, 4, 0.25], [2878, 1, 3, 0.52], [26, 1, 3, 0.07], [9785, 1, 3, 0.27], [5165, 1, 6, 0.2], [399, 24, 3, 0.46], [9065, 2, 4, 0.13], [5734, 2, 3, 0.09], [10780, 10, 4, 0.72], [12764, 2, 6, 0.28], [11088, 2, 5, 0.23], [11681, 2, 9, 0.82], [991, 2, 3, 0.28], [3429, 15, 3, 0.19], [406, 3, 8, 0.56], [6222, 7, 7, 0.0], [18, 1, 3, 0.19], [9786, 1, 3, 0.27], [3840, 1, 4, 0.21], [8945, 1, 4, 0.0], [6396, 7, 8, 0.0], [11089, 1, 4, 0.68], [2109, 3, 12, 0.22], [9081, 3, 12, 0.35], [3981, 3, 16, 0.43], [1604, 68, 3, 0.27], [11952, 1, 5, 0.68], [12924, 1, 4, 0.15], [8557, 3, 3, 0.22], [66, 15, 3, 0.19], [13033, 3, 6, 0.54], [788, 2, 3, 0.17], [66, 16, 3, 0.19], [12059, 3, 5, 0.28], [12358, 3, 6, 0.66], [3434, 2, 3, 0.4], [11084, 2, 4, 0.23], [10172, 1, 6, 0.21], [3104, 1, 6, 0.45], [3894, 1, 3, 0.44], [13110, 3, 7, 0.68], [2109, 1, 5, 0.22], [12357, 3, 5, 0.67], [6494, 1, 4, 0.38], [2104, 3, 9, 0.19], [1087, 1, 4, 0.32], [7007, 1, 3, 0.15], [2423, 29, 10, 0.38], [6561, 3, 7, 0.0], [6341, 3, 9, 0.0], [3016, 68, 3, 0.14], [6575, 3, 4, 0.41], [10537, 3, 5, 0.18], [8285, 2, 4, 0.2], [389, 4, 3, 0.36], [2854, 21, 7, 0.23], [19047, 3, 4, 0.17], [6398, 1, 3, 0.0], [1765, 25, 4, 0.44], [9796, 3, 10, 0.26], [1895, 3, 4, 0.42], [11586, 1, 8, 0.4], [11510, 3, 6, 0.32], [6799, 7, 7, 0.0], [19583, 3, 4, 0.4], [1667, 3, 3, 0.34], [10409, 10, 8, 0.32], [12355, 3, 4, 0.61], [7182, 1, 4, 0.33], [9797, 3, 9, 0.26], [9783, 1, 3, 0.26], [159, 16, 3, 0.14], [9787, 1, 3, 0.28], [1413, 16, 3, 0.21], [1309, 1, 3, 0.29], [12058, 3, 4, 0.28], [8926, 1, 5, 0.37], [215, 4, 3, 0.48], [7324, 1, 3, 0.2], [6496, 1, 7, 0.78], [5666, 2, 6, 0.51], [11644, 1, 4, 0.29], [5153, 2, 4, 0.19], [11707, 3, 5, 0.37], [4076, 3, 3, 0.43], [288, 3, 4, 0.32], [11903, 332, 9, 0.0], [3475, 2, 3, 0.23], [10514, 3, 4, 0.27], [8904, 7, 16, 0.0], [10410, 10, 8, 1.15], [12362, 3, 4, 0.61], [8897, 3, 4, 0.66], [9854, 1, 3, 0.42], [149, 2, 3, 0.37], [11812, 1, 4, 0.21], [440, 3, 3, 1.35], [2368, 3, 5, 0.14], [9830, 3, 3, 0.17], [3341, 3, 3, 0.55], [2803, 2, 8, 0.52], [9, 1, 3, 0.17], [5434, 1, 3, 0.28], [10408, 10, 6, 0.27], [66, 1, 3, 0.19], [11491, 2, 5, 0.24], [20555, 2, 3, 0.3], [37, 1, 3, 0.31], [6565, 7, 7, 0.0], [471, 1, 4, 0.14], [6207, 7, 7, 0.0], [2103, 15, 3, 0.2], [289, 3, 4, 0.32], [11080, 3, 3, 0.85], [3610, 24, 3, 0.51], [6206, 3, 10, 0.0], [1766, 2, 3, 0.19], [6259, 1, 3, 0.0], [515, 24, 3, 0.45], [424, 11, 10, 0.5], [3048, 3, 4, 0.37], [12361, 3, 4, 0.67], [2729, 3, 3, 0.47], [11813, 1, 4, 0.4], [435, 2, 5, 0.41], [19972, 3, 4, 0.26], [3143, 3, 3, 0.44], [5585, 3, 3, 0.63], [6952, 1, 9, 0.41], [922, 1, 3, 0.08], [13023, 3, 7, 0.35], [506, 1, 3, 0.37], [1622, 1, 6, 0.17], [9998, 80, 3, 0.48], [5076, 1, 7, 0.64], [2859, 15, 3, 0.29], [7705, 2, 8, 0.32], [3982, 3, 14, 0.42], [12923, 1, 4, 0.15], [5165, 2, 7, 0.19], [3049, 3, 4, 0.48], [8891, 1, 4, 0.0], [11689, 2, 4, 0.11], [11856, 1, 3, 0.37], [21003, 2, 5, 0.45], [2369, 3, 5, 0.3], [3674, 2, 4, 0.43], [6342, 3, 8, 0.0], [5435, 1, 3, 0.19], [6864, 1, 3, 0.29], [11771, 1, 4, 0.12], [169, 4, 3, 0.22], [7724, 3, 3, 0.36], [409, 1, 3, 0.2], [11706, 3, 4, 0.34], [12964, 3, 4, 0.58], [7707, 2, 5, 0.32], [11159, 1, 11, 0.67], [563, 2, 3, 0.24], [20196, 2, 5, 0.45], [11967, 1, 3, 0.15], [20969, 3, 6, 0.58], [11687, 2, 4, 0.11], [13263, 29, 3, 0.28], [10716, 3, 5, 0.13], [951, 4, 3, 0.23], [21712, 3, 17, 0.16], [4032, 29, 7, 0.45], [11160, 1, 8, 0.68], [9507, 1, 3, 0.1], [11236, 2, 4, 0.32], [10936, 2, 3, 0.5], [11485, 24, 4, 0.67], [4253, 1, 4, 0.29], [1070, 2, 3, 0.26], [12526, 2, 5, 0.42], [11768, 1, 3, 0.0], [2422, 80, 4, 0.43], [6209, 7, 7, 0.0], [12356, 3, 4, 0.61], [11690, 2, 4, 0.12], [5730, 2, 3, 0.09], [345, 1, 4, 0.0], [6223, 7, 5, 0.0], [615, 2, 16, 0.28], [491, 10, 7, 0.29], [12241, 3, 4, 0.14], [10939, 2, 3, 0.5], [5490, 2, 3, 0.23], [12501, 1, 3, 0.0], [11793, 2, 6, 0.4], [8753, 2, 6, 0.27], [2728, 3, 3, 0.32], [5646, 2, 3, 0.2], [2912, 2, 7, 0.2], [11814, 1, 3, 0.21], [10633, 2, 3, 0.52], [1185, 3, 3, 0.56], [7704, 2, 6, 0.32], [7729, 7, 9, 0.0], [10536, 3, 4, 0.16], [10941, 2, 3, 0.5], [344, 25, 3, 0.26], [8685, 3, 4, 0.74], [12661, 1, 4, 1.12], [11846, 3, 4, 0.26], [70, 16, 3, 0.17], [2774, 2, 3, 0.57], [6225, 7, 6, 0.0], [9124, 1, 4, 0.31], [585, 2, 3, 0.25], [11868, 3, 4, 0.26], [3258, 1, 4, 0.34], [10411, 10, 6, 0.28], [10529, 29, 10, 0.41], [947, 15, 3, 0.26], [2322, 2, 3, 0.33], [3899, 3, 3, 0.22], [789, 2, 3, 0.17], [6259, 7, 24, 0.0], [11164, 1, 10, 0.6], [2438, 2, 7, 0.2], [6630, 3, 3, 0.25], [13893, 2, 4, 0.37], [20650, 1, 3, 0.46], [9342, 2, 4, 0.7], [220, 4, 3, 0.47], [6235, 7, 9, 0.0], [407, 3, 5, 0.56], [956, 2, 3, 0.25], [1801, 1, 3, 0.4], [8054, 1, 3, 0.32], [11526, 10, 9, 0.15], [10632, 2, 3, 0.52], [6197, 7, 11, 0.0], [2335, 3, 3, 0.26], [973, 1, 3, 0.0], [1120, 1, 4, 0.19], [6422, 3, 4, 0.4], [12271, 2, 3, 0.27], [10397, 3, 3, 0.16], [8674, 2, 6, 0.32], [12647, 1, 5, 0.4], [11677, 1, 9, 1.02], [7702, 2, 9, 0.32], [2730, 3, 3, 0.47], [8756, 2, 5, 0.27], [1414, 16, 3, 0.21], [3994, 1, 3, 0.19], [405, 3, 5, 0.56], [201, 1, 3, 0.0], [11710, 3, 5, 0.26], [5812, 1, 3, 0.34], [3909, 7, 9, 0.32], [21683, 3, 4, 0.4], [11179, 1, 3, 0.35], [3430, 15, 3, 0.3], [10516, 3, 4, 0.34], [5939, 3, 3, 0.31], [2105, 3, 8, 0.17], [11039, 2, 14, 0.49], [12373, 1, 8, 0.81], [71, 16, 3, 0.16], [2733, 3, 3, 0.47], [21686, 3, 6, 0.68], [13498, 3, 5, 0.62], [380, 2, 3, 0.23], [3047, 3, 5, 0.45], [11772, 1, 7, 0.77], [21703, 3, 3, 0.52], [12010, 3, 3, 0.14], [21010, 2, 5, 0.45], [18964, 1, 3, 0.28], [6424, 3, 3, 0.71], [632, 11, 19, 0.0], [10825, 1, 4, 0.22], [3258, 7, 6, 0.34], [5083, 12, 11, 0.21], [7706, 2, 4, 0.32], [6560, 3, 5, 0.0], [9068, 1, 3, 0.61], [4176, 4, 3, 0.35], [1701, 2, 3, 0.67], [5493, 2, 8, 0.28], [11090, 1, 3, 0.15], [11887, 2, 5, 0.24], [332, 2, 3, 0.23], [5152, 2, 5, 0.59], [334, 25, 3, 0.55], [10406, 1, 3, 0.31], [23611, 3, 5, 0.5], [3059, 3, 3, 0.43], [12234, 3, 3, 0.68], [21699, 3, 5, 0.29], [2436, 4, 3, 0.64], [12662, 1, 3, 0.41], [2879, 1, 3, 0.24], [8284, 2, 4, 0.17], [22318, 3, 4, 0.41], [19582, 3, 4, 0.4], [1274, 1, 3, 0.4], [8510, 7, 9, 0.0], [8636, 3, 6, 0.64], [1339, 1, 3, 0.18], [11104, 3, 3, 0.87], [6540, 25, 3, 0.38], [353, 1, 3, 0.31], [2421, 80, 4, 0.2], [11909, 3, 3, 0.3], [9803, 3, 10, 0.19], [942, 3, 4, 0.31], [3021, 68, 3, 0.17], [1413, 1, 3, 0.2], [11288, 2, 3, 1.31], [13483, 1, 3, 0.53], [8927, 10, 10, 0.15], [12369, 1, 4, 0.0], [3551, 3, 3, 0.23], [1548, 1, 3, 0.3], [6792, 2, 3, 0.22], [3340, 3, 3, 0.89], [10717, 3, 4, 0.16], [1120, 3, 7, 0.18], [11643, 1, 4, 0.29], [2738, 3, 4, 0.44], [354, 2, 3, 0.23], [12235, 3, 3, 0.68], [11495, 1, 3, 0.21], [11710, 1, 5, 0.26], [6628, 3, 3, 0.17], [6034, 23, 7, 0.37], [11180, 1, 4, 0.35], [616, 2, 15, 0.28], [9358, 1, 3, 0.35], [9204, 3, 4, 0.05], [10940, 2, 3, 0.5], [1038, 2, 4, 0.12], [14039, 3, 5, 0.18], [3975, 4, 3, 0.35], [6957, 7, 14, 0.41], [10937, 2, 3, 0.5], [6339, 3, 7, 0.0], [1049, 2, 3, 0.14], [21697, 3, 3, 0.28], [8754, 2, 4, 0.18], [72, 1, 3, 0.21], [11427, 2, 4, 0.17], [11587, 1, 7, 0.46], [2990, 3, 3, 0.39], [3961, 1, 3, 0.16], [8891, 7, 17, 0.0], [80, 1, 3, 0.28], [21269, 1, 3, 0.0], [11494, 1, 3, 0.16], [10412, 10, 5, 0.2], [975, 3, 4, 0.16], [6566, 7, 6, 0.0], [5940, 3, 3, 0.3], [2422, 29, 6, 0.43], [5007, 3, 6, 0.22], [11919, 1, 6, 0.19], [9945, 3, 4, 0.18], [8902, 7, 9, 0.0], [11611, 2, 4, 0.24], [7703, 2, 4, 0.32], [12229, 2, 3, 0.25], [10630, 2, 3, 0.52], [292, 3, 3, 0.32], [12728, 1, 3, 0.0], [4372, 10, 9, 0.32], [3257, 4, 3, 0.52], [19924, 2, 5, 0.44], [12621, 1, 3, 0.46], [12360, 3, 4, 0.66], [454, 3, 4, 0.32], [2945, 3, 3, 0.55], [938, 3, 4, 0.32], [21806, 1, 3, 0.0], [10093, 3, 11, 0.44], [13024, 3, 5, 0.48], [21713, 3, 10, 0.18], [23489, 3, 4, 0.48], [6570, 7, 6, 0.0], [12496, 3, 4, 0.21], [11717, 3, 4, 1.03], [22558, 3, 4, 0.22], [1668, 1, 3, 0.3], [10530, 29, 7, 0.4], [19583, 1, 3, 0.0], [9971, 2, 3, 0.45], [1602, 68, 3, 0.55], [23339, 3, 3, 0.23], [111, 1, 3, 0.07], [247, 1, 3, 0.39], [22590, 1, 4, 0.23], [944, 15, 3, 0.18], [4175, 3, 11, 0.43], [1050, 2, 3, 0.14], [2103, 16, 3, 0.2], [12417, 1, 3, 0.37], [7457, 3, 6, 0.21], [11583, 29, 7, 0.26], [11885, 2, 4, 0.24], [19581, 3, 4, 0.4], [3079, 3, 3, 0.22], [11213, 4, 3, 1.13], [22565, 3, 4, 0.42], [6266, 23, 10, 0.24], [21704, 3, 13, 0.19], [8659, 1, 3, 0.41], [3477, 2, 3, 0.21], [3528, 25, 4, 0.22], [9778, 1, 3, 0.27], [2108, 3, 6, 0.17], [12979, 25, 9, 0.29], [21700, 3, 3, 0.53], [2100, 25, 4, 0.25], [11450, 2, 4, 0.18], [12653, 1, 7, 0.17], [10488, 7, 7, 0.0], [7250, 3, 4, 0.13], [10407, 1, 3, 0.0], [11304, 2, 3, 1.31], [13481, 1, 3, 0.53], [9491, 21, 7, 0.3], [11936, 2, 3, 0.5], [12363, 3, 4, 0.66], [7708, 2, 4, 0.32], [6627, 3, 3, 0.17], [20188, 3, 3, 0.45], [2528, 29, 3, 0.22], [12236, 3, 5, 0.15], [10828, 7, 18, 0.0], [1601, 68, 3, 0.57], [10398, 2, 3, 0.23], [23275, 2, 3, 0.27], [8943, 1, 3, 0.28], [7885, 1, 3, 0.13], [8686, 3, 3, 0.74], [11183, 1, 6, 0.84], [4033, 29, 12, 0.37], [5831, 3, 3, 0.42], [14038, 3, 4, 0.26], [10529, 80, 4, 0.41], [6219, 7, 4, 0.0], [8600, 1, 3, 0.43], [10413, 10, 5, 0.74], [8681, 3, 3, 0.18], [6343, 3, 8, 0.0], [9126, 1, 7, 0.31], [21810, 1, 4, 0.0], [4232, 80, 5, 0.41], [6562, 3, 4, 0.0], [10581, 3, 6, 0.6], [9186, 29, 3, 0.22], [11158, 1, 11, 0.69], [12367, 3, 4, 0.67], [2805, 137, 6, 0.43], [2727, 3, 3, 0.54], [10635, 2, 3, 0.52], [10527, 3, 11, 0.45], [12417, 3, 4, 0.37], [14029, 3, 3, 0.3], [12729, 1, 3, 0.0], [11402, 1, 3, 0.42], [5976, 1, 3, 0.32], [2539, 29, 7, 0.24], [3673, 2, 4, 0.53], [13025, 3, 5, 0.49], [23491, 3, 4, 0.13], [11048, 1, 3, 0.24], [3553, 3, 3, 0.23], [2318, 2, 3, 0.16], [167, 1, 3, 0.0], [12368, 3, 4, 0.68], [12497, 3, 4, 0.21], [13482, 1, 3, 0.53], [5491, 2, 3, 0.28], [1886, 2, 6, 1.29], [10540, 3, 3, 0.18], [3562, 3, 3, 0.23], [22573, 2, 3, 0.27], [9997, 80, 3, 0.38], [7360, 3, 3, 0.2], [4327, 1, 3, 0.23], [11399, 2, 4, 0.26], [8683, 3, 3, 0.19], [331, 3, 3, 0.22], [2916, 1, 3, 0.38], [2946, 3, 4, 0.51], [2161, 1, 3, 0.2], [12646, 1, 5, 0.41], [8356, 1, 3, 0.31], [10626, 7, 10, 0.0], [6340, 3, 5, 0.0], [3898, 3, 3, 0.22], [6317, 7, 8, 0.0], [2734, 3, 3, 0.54], [19977, 2, 3, 1.05], [6399, 7, 17, 0.0], [13491, 7, 4, 0.45], [6233, 7, 11, 0.0], [11161, 1, 9, 0.63], [11150, 1, 3, 0.18], [6567, 7, 9, 0.0], [11858, 1, 3, 0.37], [436, 2, 6, 0.39], [624, 2, 13, 0.29], [12270, 2, 3, 0.28], [186, 3, 10, 0.22], [13272, 29, 5, 0.27], [6668, 332, 8, 0.0], [11181, 1, 6, 0.6], [3910, 7, 8, 0.33], [6267, 23, 9, 0.24], [10409, 1, 3, 0.3], [7300, 7, 10, 0.0], [8599, 1, 3, 0.47], [6234, 7, 8, 0.0], [6540, 29, 4, 0.38], [96, 1, 4, 0.0], [9533, 7, 10, 0.0], [9965, 2, 3, 0.45], [21317, 3, 3, 0.17], [11467, 1, 3, 0.47], [2537, 1, 4, 0.26], [11855, 1, 3, 0.37], [12304, 1, 7, 0.71], [11886, 2, 4, 0.27], [3908, 7, 8, 0.65], [13107, 3, 5, 1.1], [17, 1, 3, 0.19], [344, 2, 3, 0.27], [12212, 29, 3, 0.24], [6236, 7, 6, 0.0], [13133, 3, 4, 0.68], [1300, 3, 4, 0.32], [9840, 25, 7, 0.2], [13036, 3, 4, 0.58], [11409, 7, 9, 0.2], [291, 3, 4, 0.32], [11718, 3, 3, 1.03], [12053, 2, 5, 0.38], [5644, 3, 3, 0.42], [1065, 7, 9, 0.22], [8637, 3, 5, 0.69], [12791, 2, 6, 0.21], [2735, 3, 3, 0.39], [5343, 15, 3, 0.26], [2099, 2, 3, 0.28], [10530, 80, 3, 0.41], [11150, 2, 6, 0.19], [6055, 3, 5, 0.38], [21808, 1, 3, 0.0], [2188, 2, 7, 0.18], [2992, 3, 3, 0.41], [11930, 1, 3, 0.58], [21687, 3, 4, 0.68], [6195, 7, 9, 0.0], [11610, 3, 4, 0.18], [6198, 7, 7, 0.0], [1851, 1, 3, 0.17], [21683, 1, 3, 0.0], [8188, 10, 7, 0.2], [3559, 11, 11, 0.22], [9996, 80, 3, 0.46], [5658, 68, 3, 0.15], [22330, 3, 3, 0.47], [3977, 3, 3, 0.48], [5642, 3, 3, 0.42], [23341, 3, 3, 0.23], [12935, 3, 4, 0.39], [12925, 1, 5, 0.15], [21807, 1, 3, 0.0], [1880, 4, 3, 1.05], [408, 3, 4, 0.56], [12764, 1, 3, 0.27], [3552, 3, 3, 0.23], [20920, 3, 3, 0.26], [21316, 3, 3, 0.17], [21170, 10, 6, 0.34], [6800, 7, 4, 0.0], [6036, 23, 5, 0.37], [6957, 2, 3, 0.41], [23493, 3, 4, 0.13], [71, 1, 3, 0.16], [23494, 3, 3, 0.13], [6787, 7, 10, 0.0], [13264, 29, 3, 0.24], [21809, 1, 4, 0.0], [5341, 15, 3, 0.28], [8905, 7, 9, 0.0], [21701, 3, 3, 0.52], [10149, 1, 6, 0.28], [109, 4, 3, 0.56], [11641, 1, 4, 0.29], [8286, 1, 3, 0.17], [958, 2, 3, 0.26], [13488, 1, 5, 0.33], [9777, 1, 3, 0.26], [23040, 10, 6, 1.16], [4326, 1, 3, 0.23], [11961, 1, 3, 0.18], [7886, 1, 3, 0.15], [586, 1, 3, 0.2], [6629, 3, 3, 0.19], [12239, 3, 4, 0.13], [2821, 3, 10, 0.23], [23961, 3, 3, 0.26], [11618, 1, 3, 0.26], [825, 1, 3, 0.17], [9344, 332, 4, 0.0], [11633, 1, 4, 0.19], [11678, 1, 6, 0.58], [11178, 1, 3, 0.34], [192, 3, 11, 0.29], [28, 1, 3, 0.31], [4586, 10, 13, 0.26], [1414, 1, 3, 0.2], [5128, 1, 3, 0.24], [3984, 3, 9, 0.43], [9138, 2, 4, 0.33], [5111, 1, 3, 0.33], [8155, 25, 3, 0.29], [11920, 1, 5, 0.15], [3278, 29, 6, 0.27], [7513, 1, 3, 0.0], [11290, 2, 3, 1.31], [590, 16, 3, 0.22], [9803, 138, 3, 0.19], [20966, 3, 4, 0.58], [10594, 3, 3, 0.22], [8058, 3, 4, 0.55], [21476, 7, 5, 0.47], [936, 3, 4, 0.12], [2438, 1, 3, 0.2], [7513, 7, 16, 0.0], [21946, 1, 3, 0.49], [7522, 7, 11, 0.0], [4372, 1, 3, 0.34], [5340, 23, 5, 0.2], [21781, 2, 3, 0.16], [19341, 2, 3, 0.21], [21463, 7, 4, 0.29], [19764, 2, 4, 0.21], [6052, 3, 5, 0.28], [12055, 2, 5, 0.38], [11619, 1, 3, 0.26], [2013, 2, 3, 0.43], [23492, 3, 3, 0.13], [10816, 3, 5, 1.06], [14040, 3, 4, 0.53], [3906, 14, 7, 0.29], [19687, 1, 3, 0.34], [1523, 1, 3, 0.47], [4001, 3, 12, 0.42], [13041, 3, 3, 0.21], [13249, 29, 19, 0.66], [9910, 25, 3, 0.18], [12637, 1, 3, 0.25], [13323, 3, 4, 0.21], [560, 1, 3, 0.5], [11564, 29, 5, 0.21], [6056, 3, 4, 0.29], [20965, 3, 5, 0.58], [12594, 7, 3, 0.14], [12054, 2, 5, 0.38], [9087, 29, 6, 0.4], [11848, 1, 3, 0.27], [21169, 10, 4, 0.35], [11435, 2, 4, 0.18], [19685, 1, 4, 0.0], [5650, 2, 3, 0.2], [12979, 1, 3, 0.29], [5733, 2, 6, 0.34], [12474, 3, 4, 0.8], [10410, 1, 3, 0.0], [152, 1, 3, 0.0], [11711, 3, 3, 0.47], [1024, 1, 3, 0.17], [2287, 25, 3, 0.36], [21927, 1, 3, 0.14], [22696, 3, 3, 0.25], [12365, 3, 5, 0.51], [216, 4, 3, 0.39], [21167, 10, 5, 0.35], [20190, 3, 4, 0.47], [2736, 3, 3, 0.39], [11085, 1, 3, 0.25], [12418, 3, 4, 0.37], [10507, 2, 3, 0.24], [9608, 1, 3, 0.18], [3071, 3, 3, 0.23], [11157, 11, 7, 0.17], [21692, 3, 4, 0.76], [10640, 3, 4, 0.22], [10414, 10, 4, 0.17], [10521, 3, 4, 0.32], [11773, 1, 3, 0.29], [12871, 1, 4, 0.83], [11968, 1, 3, 0.11], [22693, 3, 3, 0.25], [11182, 1, 6, 0.91], [2108, 1, 3, 0.17], [8283, 1, 3, 0.18], [10460, 3, 4, 0.39], [21705, 3, 7, 0.49], [3028, 3, 3, 0.15], [10461, 3, 6, 0.39], [11915, 3, 16, 0.19], [11163, 1, 20, 0.51], [10459, 3, 6, 0.39], [12913, 3, 3, 0.12], [1066, 7, 10, 0.11], [2323, 2, 3, 0.33], [13104, 3, 4, 1.1], [23960, 3, 3, 0.27], [3576, 29, 3, 0.3], [9841, 25, 7, 0.2], [432, 1, 3, 0.28], [5851, 1, 7, 0.17], [7564, 7, 6, 0.0], [10639, 2, 3, 0.52], [9289, 29, 10, 0.65], [168, 1, 3, 0.26], [70, 1, 3, 0.17], [8896, 1, 3, 0.5], [13268, 29, 4, 0.4], [5494, 2, 4, 0.28], [10082, 23, 6, 0.31], [21468, 7, 3, 0.28], [8682, 3, 4, 0.18], [6057, 3, 4, 0.38], [9967, 2, 3, 0.45], [10638, 2, 3, 0.52], [23490, 3, 3, 0.48], [3583, 3, 4, 0.23], [3088, 1, 3, 0.15], [6235, 1, 3, 0.0], [12040, 68, 5, 0.19], [5660, 2, 4, 0.77], [3905, 14, 5, 0.0], [6035, 23, 4, 0.37], [12992, 3, 8, 0.2], [12057, 2, 4, 0.38], [21168, 10, 4, 0.35], [11962, 1, 3, 0.2], [9788, 1, 3, 0.27], [11625, 29, 3, 0.21], [11844, 2, 3, 0.26], [11857, 1, 3, 0.37], [10531, 14, 7, 0.25], [2859, 16, 3, 0.29], [6319, 7, 12, 0.0], [8904, 1, 3, 0.0], [8085, 1, 3, 0.3], [6394, 1, 3, 0.0], [6728, 1, 3, 0.24], [10487, 7, 4, 0.0], [8234, 1, 3, 0.35], [11262, 7, 8, 0.0], [9350, 3, 4, 0.21], [5970, 1, 3, 0.18], [11091, 1, 4, 0.15], [10906, 3, 14, 0.19], [6785, 7, 8, 0.0], [1765, 2, 3, 0.0], [21706, 3, 12, 0.16], [10616, 1, 3, 0.0], [11960, 3, 4, 0.1], [11092, 1, 3, 0.15], [6778, 7, 10, 0.0], [12340, 2, 4, 0.32], [19334, 2, 3, 0.2], [23032, 3, 3, 0.3], [7521, 7, 9, 0.0], [11526, 1, 3, 0.13], [22553, 10, 8, 0.21], [3983, 4, 3, 0.35], [2103, 1, 3, 0.2], [10780, 3, 3, 0.72], [2169, 3, 4, 0.24], [13293, 3, 4, 0.29], [2421, 29, 3, 0.2], [22968, 1, 3, 0.24], [13037, 3, 4, 0.58], [4940, 1, 6, 0.24], [2732, 3, 3, 0.42], [2942, 3, 3, 0.45], [10609, 1, 12, 0.57], [9355, 1, 3, 0.27], [20963, 3, 4, 0.58], [7084, 1, 3, 0.0], [2406, 29, 3, 0.35], [1080, 1, 5, 1.21], [9087, 25, 3, 0.4], [13198, 29, 3, 0.31], [59, 1, 3, 0.0], [60, 1, 3, 0.27], [3976, 3, 8, 0.43], [10080, 3, 3, 0.0], [2365, 3, 4, 0.31], [22691, 3, 3, 0.25], [10275, 3, 3, 0.19], [11931, 1, 3, 0.58], [3442, 29, 7, 0.35], [31, 1, 3, 0.31], [5188, 1, 3, 0.23], [9544, 7, 8, 0.0], [10462, 3, 4, 0.39], [8690, 10, 11, 0.17], [8167, 7, 4, 0.4], [8688, 14, 4, 0.3], [8059, 3, 4, 0.55], [5577, 3, 3, 0.36], [21315, 3, 3, 0.17], [20918, 3, 3, 0.44], [334, 2, 3, 0.0], [13106, 3, 4, 1.09], [3576, 25, 3, 0.3], [3575, 29, 3, 0.3], [11775, 1, 3, 0.3], [3337, 1, 3, 0.35], [3334, 5, 5, 0.43], [336, 16, 3, 0.16], [11891, 3, 5, 0.37], [19582, 1, 3, 0.0], [10114, 3, 10, 0.0], [12475, 3, 4, 0.7], [10482, 7, 6, 0.0], [11867, 3, 4, 0.32], [3462, 2, 3, 0.31], [3379, 3, 3, 0.31], [5341, 16, 3, 0.28], [21480, 7, 6, 0.5], [12912, 3, 3, 0.13], [10083, 23, 7, 0.31], [4329, 3, 4, 0.24], [1139, 3, 3, 0.15], [3053, 3, 3, 0.31], [2217, 1, 5, 0.48], [12338, 29, 5, 0.24], [19765, 2, 3, 0.21], [20556, 2, 3, 0.28], [21712, 1, 3, 0.17], [19331, 2, 3, 0.21], [12917, 3, 3, 0.13], [14014, 3, 4, 0.29], [6054, 3, 4, 0.29], [11105, 3, 3, 0.19], [10597, 3, 3, 0.27], [11498, 1, 3, 0.3], [20964, 3, 4, 0.58], [10455, 29, 3, 0.16], [214, 1, 3, 0.17], [6966, 3, 3, 0.45], [7570, 3, 6, 0.0], [4030, 25, 3, 0.28], [21481, 7, 3, 0.37], [1431, 3, 6, 0.31], [6194, 3, 10, 0.0], [12490, 2, 3, 0.33], [11942, 29, 3, 0.42], [11613, 2, 3, 0.24], [11339, 3, 3, 0.45], [10669, 3, 3, 0.26], [12426, 3, 4, 0.25], [3429, 16, 3, 0.19], [10517, 29, 11, 0.63], [3609, 24, 3, 0.66], [19223, 1, 3, 0.0], [20956, 7, 5, 0.31], [1406, 25, 4, 0.24], [11054, 3, 4, 0.97], [7569, 3, 7, 0.0], [11156, 11, 6, 0.16], [9779, 1, 3, 0.29], [11410, 29, 4, 0.25], [8684, 3, 3, 0.19], [11306, 2, 3, 0.84], [13258, 29, 5, 0.36], [12930, 2, 4, 0.16], [20790, 1, 6, 0.2], [11634, 1, 3, 0.18], [2100, 2, 3, 0.25], [3945, 23, 9, 0.26], [11965, 1, 3, 0.18], [9781, 1, 3, 0.29], [11426, 25, 3, 0.3], [9494, 1, 5, 0.33], [23337, 3, 3, 0.48], [11719, 3, 5, 1.11], [11722, 3, 3, 1.09], [3979, 3, 7, 0.42], [21783, 2, 3, 0.19], [11338, 7, 3, 0.31], [12517, 2, 5, 0.38], [12952, 21, 3, 0.68], [3903, 14, 5, 0.33], [10580, 3, 4, 0.86], [13274, 29, 5, 0.31], [3575, 25, 3, 0.31], [448, 1, 3, 0.21], [8106, 10, 3, 0.27], [22697, 3, 3, 0.25], [10483, 7, 6, 0.0], [19375, 3, 3, 0.22], [10596, 3, 3, 0.27], [12309, 2, 3, 0.31], [3421, 3, 13, 0.13], [8157, 29, 3, 0.34], [6872, 25, 3, 0.27], [10408, 1, 3, 0.26], [963, 3, 3, 0.37], [10668, 3, 3, 0.28], [88, 1, 3, 0.3], [8068, 3, 9, 0.0], [61, 1, 3, 0.0], [12535, 2, 3, 0.15], [11411, 29, 3, 0.16], [6208, 7, 6, 0.0], [5342, 23, 6, 0.19], [2731, 3, 3, 0.47], [10524, 29, 6, 0.4], [13034, 1, 3, 0.0], [13105, 3, 4, 1.09], [6489, 11, 16, 0.32], [11273, 1, 17, 0.61], [2326, 2, 3, 0.0], [11642, 1, 3, 0.28], [1299, 3, 6, 0.31], [23039, 10, 5, 1.16], [21474, 7, 3, 0.34], [5343, 16, 3, 0.27], [333, 25, 3, 0.53], [20919, 3, 3, 0.19], [13246, 29, 3, 0.0], [12159, 2, 3, 0.2], [2411, 29, 3, 0.21], [20208, 3, 3, 0.22], [13266, 29, 3, 0.25], [11659, 3, 3, 0.37], [9780, 1, 3, 0.29], [11726, 29, 3, 0.22], [12418, 1, 4, 0.37], [22694, 3, 3, 0.25], [10524, 80, 3, 0.4], [2538, 1, 3, 0.0], [3722, 25, 3, 0.37], [5020, 23, 12, 0.24], [2709, 15, 3, 0.28], [10707, 1, 3, 0.58], [23234, 25, 3, 0.23], [12993, 3, 7, 0.2], [11152, 11, 6, 0.18], [2608, 1, 3, 0.13], [8906, 7, 9, 0.0], [9910, 29, 3, 0.18], [13259, 29, 7, 0.0], [1744, 1, 3, 0.34], [13038, 3, 4, 0.61], [12240, 14, 3, 0.13], [13273, 29, 3, 0.3], [2935, 1, 3, 0.18], [10828, 1, 3, 0.0], [19581, 1, 3, 0.0], [9125, 1, 5, 0.31], [22920, 3, 4, 0.37], [5925, 1, 5, 0.13], [12586, 3, 4, 0.38], [5652, 2, 3, 0.18], [21691, 3, 5, 0.53], [11154, 11, 6, 0.16], [20921, 3, 3, 0.26], [1095, 2, 4, 0.2], [7565, 7, 5, 0.0], [3723, 25, 3, 0.44], [21187, 10, 4, 1.58], [110, 1, 3, 0.0], [9998, 29, 3, 0.48], [4223, 4, 3, 0.4], [21698, 3, 3, 0.28], [11529, 10, 5, 0.15], [2417, 29, 6, 0.36], [7457, 1, 3, 0.21], [3585, 3, 3, 0.22], [11859, 1, 3, 0.37], [1691, 1, 3, 0.41], [9995, 80, 3, 0.17], [9356, 1, 3, 0.17], [8191, 10, 5, 0.19], [13258, 25, 3, 0.36], [10815, 3, 5, 1.11], [6346, 7, 4, 0.0], [22874, 3, 3, 0.28], [790, 2, 3, 0.14], [4222, 4, 3, 0.44], [2985, 3, 3, 0.25], [14, 1, 3, 0.18], [12725, 1, 3, 0.2], [10279, 3, 3, 0.55], [11289, 2, 3, 1.31], [9671, 3, 4, 0.29], [2234, 1, 3, 0.43], [10384, 3, 4, 0.13], [14016, 3, 3, 0.53], [180, 15, 3, 0.13], [948, 15, 3, 0.11], [3988, 4, 3, 0.39], [6931, 2, 3, 0.28], [3560, 3, 3, 0.23], [22910, 3, 4, 0.39], [4927, 12, 4, 0.22], [9122, 15, 3, 0.17], [22591, 1, 3, 0.23], [21091, 7, 3, 0.16], [1575, 1, 3, 0.35], [6668, 1, 3, 0.0], [3450, 1, 3, 0.18], [11425, 25, 3, 0.28], [22585, 3, 3, 0.26], [3430, 16, 3, 0.31], [3561, 3, 3, 0.23], [8903, 7, 9, 0.0], [5769, 3, 6, 0.0], [22879, 3, 3, 0.28], [394, 10, 5, 0.15], [382, 1, 3, 0.5], [2308, 25, 3, 0.37], [11412, 29, 3, 0.16], [21694, 3, 5, 0.53], [11564, 80, 3, 0.21], [7525, 7, 9, 0.0], [2325, 2, 3, 0.33], [12379, 1, 3, 0.58], [23028, 3, 3, 0.29], [7566, 3, 6, 0.0], [10254, 1, 3, 0.46], [1620, 1, 3, 0.21], [6798, 7, 5, 0.0], [1068, 7, 8, 0.19], [2492, 1, 3, 0.27], [23962, 3, 3, 0.25], [2111, 3, 5, 0.19], [13259, 25, 5, 0.57], [10994, 2, 3, 0.25], [21686, 1, 3, 0.0], [2836, 3, 7, 0.23], [23903, 3, 4, 0.26], [11226, 1, 3, 0.16], [12648, 1, 8, 0.51], [3016, 3, 3, 0.14], [3080, 3, 3, 0.23], [21626, 1, 3, 0.21], [2417, 80, 3, 0.37], [5648, 2, 3, 0.24], [11426, 29, 3, 0.3], [1055, 2, 3, 0.12], [10278, 3, 3, 0.37], [2367, 3, 3, 0.31], [23231, 3, 4, 0.21], [2188, 1, 7, 0.19], [5446, 23, 3, 0.0], [12419, 1, 3, 0.24], [22871, 7, 3, 0.28], [1407, 25, 3, 0.25], [10176, 29, 3, 0.37], [9182, 1, 3, 0.12], [11503, 1, 3, 0.63], [10640, 1, 3, 0.22], [512, 24, 3, 1.08], [8139, 7, 9, 0.0], [1432, 25, 3, 0.21], [9149, 23, 4, 0.2], [7362, 3, 3, 0.19], [5543, 1, 4, 0.16], [4672, 1, 3, 0.78], [10897, 1, 9, 0.56], [11056, 3, 4, 1.1], [19358, 23, 5, 0.21], [12585, 3, 4, 0.32], [10599, 3, 3, 0.28], [392, 4, 3, 0.36], [3970, 2, 3, 0.82], [8089, 1, 4, 0.64], [11528, 10, 5, 0.15], [3386, 1, 3, 0.5], [8756, 1, 3, 0.26], [2193, 1, 7, 0.13], [2366, 3, 3, 0.31], [12476, 3, 4, 0.7], [19361, 23, 5, 0.23], [12430, 3, 4, 0.37], [6803, 3, 4, 0.32], [3986, 4, 3, 0.35], [13108, 3, 6, 1.11], [1598, 68, 3, 0.62], [21710, 3, 7, 0.37], [10181, 26, 6, 0.0], [10124, 1, 5, 0.19], [2194, 1, 3, 0.13], [23992, 29, 5, 0.21], [11155, 11, 6, 0.16], [11253, 7, 5, 0.0], [13299, 1, 3, 0.3], [9209, 25, 3, 0.32], [8058, 1, 3, 0.54], [1301, 3, 4, 0.61], [20670, 1, 4, 0.3], [11408, 7, 8, 0.36], [21773, 2, 3, 0.19], [13023, 1, 3, 0.34], [23031, 3, 3, 0.29], [12489, 1, 3, 0.29], [10147, 1, 4, 0.17], [5813, 1, 3, 0.32], [11527, 10, 5, 0.15], [9250, 3, 5, 0.61], [19336, 2, 3, 0.19], [3598, 15, 3, 0.14], [10670, 3, 3, 0.24], [9239, 25, 3, 0.38], [11854, 1, 3, 0.37], [10928, 2, 3, 0.16], [12249, 14, 3, 0.14], [4232, 29, 3, 0.41], [12635, 2, 3, 0.36], [21189, 10, 4, 1.58], [6359, 10, 8, 0.17], [3024, 3, 3, 0.33], [1063, 7, 8, 0.21], [14041, 1, 3, 0.14], [7361, 3, 3, 0.2], [21320, 7, 10, 0.5], [3577, 29, 3, 0.27], [12516, 2, 4, 0.38], [7624, 7, 9, 0.0], [1648, 1, 3, 0.47], [22029, 3, 3, 0.52], [9085, 29, 5, 0.34], [22877, 7, 3, 0.29], [1853, 1, 3, 0.22], [3577, 25, 3, 0.26], [10574, 1, 3, 0.35], [4898, 332, 3, 0.0], [8157, 80, 3, 0.34], [3985, 3, 5, 0.42], [22922, 3, 3, 0.4], [2695, 3, 7, 0.23], [8502, 3, 3, 0.1], [3582, 3, 3, 0.22], [30, 1, 3, 0.3], [23545, 3, 4, 0.26], [6779, 7, 10, 0.0], [9085, 25, 3, 0.34], [24130, 1, 3, 0.17], [8023, 1, 3, 0.26], [9070, 1, 3, 0.19], [20958, 3, 3, 0.62], [8156, 25, 3, 0.53], [19878, 1, 3, 0.17], [11413, 29, 3, 0.16], [11510, 1, 3, 0.0], [10105, 3, 3, 0.42], [19882, 1, 3, 0.15], [12508, 1, 4, 0.36], [23544, 3, 4, 0.26], [10382, 3, 3, 0.31], [22921, 3, 3, 0.4], [12430, 1, 3, 0.37], [12675, 3, 3, 0.28], [22920, 1, 3, 0.37], [8944, 1, 3, 0.16], [12358, 1, 3, 0.65], [20969, 1, 3, 0.58], [8155, 2, 3, 0.29], [9833, 2, 6, 0.19], [12791, 1, 3, 0.22], [209, 3, 3, 0.47], [6268, 23, 9, 0.18], [3987, 3, 5, 0.45], [13295, 3, 3, 0.29], [21953, 10, 4, 0.34], [19964, 25, 3, 0.31], [5811, 1, 3, 0.31], [11055, 3, 3, 1.1], [13853, 3, 3, 0.3], [1706, 25, 3, 0.18], [2507, 2, 3, 0.1], [12676, 3, 3, 0.28], [12448, 2, 4, 0.26], [4030, 29, 3, 0.28], [5849, 1, 3, 0.17], [7524, 7, 8, 0.0], [10595, 3, 3, 0.29], [12474, 1, 3, 0.0], [23038, 10, 5, 0.74], [1277, 1, 3, 0.34], [11420, 3, 3, 0.26], [1814, 2, 3, 0.22], [1599, 68, 3, 0.59], [23920, 2, 3, 0.42], [20259, 2, 3, 0.25], [5769, 1, 4, 0.0], [21709, 3, 10, 0.22], [2050, 1, 3, 0.0], [5924, 1, 4, 0.16], [11895, 1, 3, 0.14], [8586, 7, 8, 0.0], [1059, 3, 3, 0.53], [1511, 3, 5, 0.16], [10411, 1, 3, 0.27], [6399, 1, 3, 0.0], [20961, 1, 3, 0.31], [1324, 1, 3, 0.2], [2999, 1, 3, 0.19], [9960, 3, 3, 0.14], [2104, 1, 3, 0.19], [7358, 3, 3, 0.2], [947, 16, 3, 0.26], [11212, 4, 3, 1.13], [11333, 7, 4, 0.21], [385, 1, 3, 0.49], [1053, 729, 3, 0.13], [5453, 1, 3, 0.37], [2859, 1, 3, 0.29], [22588, 3, 3, 0.25], [2403, 3, 4, 0.21], [22589, 3, 3, 0.25], [3599, 25, 3, 0.86], [11093, 1, 3, 0.15], [22914, 3, 3, 0.29], [2217, 15, 3, 0.49], [32, 1, 3, 0.29], [2934, 1, 3, 0.22], [2216, 1, 3, 0.43], [19883, 1, 3, 0.15], [20939, 3, 3, 0.38], [691, 3, 3, 0.24], [21088, 7, 4, 0.14], [22930, 3, 3, 0.29], [11215, 1, 3, 0.31], [9083, 3, 4, 0.36], [62, 1, 5, 0.29], [11603, 2, 3, 0.17], [12150, 1, 3, 0.14], [10467, 29, 5, 0.36], [2196, 25, 3, 0.26], [406, 1, 3, 0.0], [97, 1, 3, 0.0], [22923, 3, 3, 0.29], [22236, 1, 3, 0.22], [4043, 29, 5, 0.21], [1064, 7, 6, 0.33], [6396, 1, 3, 0.0], [21459, 7, 9, 0.5], [8357, 1, 3, 0.39], [7573, 1, 15, 0.32], [1406, 2, 3, 0.23], [8677, 1, 3, 0.47], [2835, 3, 6, 0.24], [10720, 80, 3, 0.2], [7568, 3, 4, 0.0], [22928, 3, 3, 0.29], [12546, 2, 3, 0.2], [20978, 1, 3, 0.48], [5452, 1, 3, 0.27], [12128, 1, 3, 0.18], [12230, 3, 3, 0.15], [3549, 29, 3, 0.37], [5540, 1, 3, 0.17], [13110, 1, 3, 0.0], [11057, 3, 3, 1.09], [3338, 1, 3, 0.22], [9373, 5, 3, 0.55], [22587, 3, 3, 0.26], [13109, 3, 6, 1.11], [11721, 3, 5, 1.11], [</t>
+  </si>
+  <si>
+    <t>[[326, 2, 16, 0.18], [130, 1, 10, 0.16], [2049, 3, 20, 0.12], [6935, 2, 30, 0.55], [3, 2, 12, 0.21], [141, 2, 9, 0.27], [362, 2, 12, 0.23], [205, 2, 6, 0.19], [75, 2, 9, 0.33], [151, 1, 14, 0.18], [305, 2, 14, 0.25], [2327, 2, 13, 0.37], [589, 2, 14, 0.0], [20252, 2, 6, 0.25], [8915, 2, 14, 0.0], [206, 2, 5, 0.19], [2328, 2, 11, 0.37], [7885, 4, 8, 0.13], [76, 2, 9, 0.25], [2778, 2, 9, 0.37], [144, 2, 10, 0.35], [593, 2, 13, 0.19], [8648, 2, 9, 0.44], [9507, 3, 4, 0.1], [8672, 2, 10, 0.31], [8650, 2, 9, 0.44], [1776, 1, 7, 0.38], [146, 2, 10, 0.34], [2050, 3, 7, 0.34], [6936, 2, 18, 0.55], [5151, 2, 8, 0.28], [412, 1, 6, 0.28], [248, 1, 6, 0.12], [143, 2, 15, 0.23], [1007, 2, 13, 0.07], [990, 2, 7, 0.1], [7886, 4, 7, 0.15], [88, 10, 18, 0.3], [2054, 3, 7, 0.34], [83, 2, 6, 0.16], [145, 2, 9, 0.27], [10149, 3, 31, 0.19], [45, 2, 8, 1.17], [346, 1, 7, 0.25], [2057, 3, 7, 0.34], [140, 2, 7, 0.18], [57, 1, 7, 0.18], [1446, 2, 5, 0.0], [5005, 1, 15, 0.22], [1777, 1, 5, 0.38], [2055, 3, 6, 0.34], [8938, 2, 7, 0.0], [1429, 2, 5, 0.0], [61, 3, 5, 0.16], [361, 2, 8, 0.27], [7004, 1, 5, 0.18], [12224, 1, 6, 0.21], [6394, 7, 37, 0.0], [10, 2, 11, 0.19], [413, 1, 4, 0.29], [5081, 2, 7, 0.18], [2991, 3, 4, 0.42], [167, 3, 6, 0.21], [168, 3, 7, 0.25], [8649, 2, 6, 0.44], [410, 1, 4, 0.14], [3478, 2, 6, 0.28], [1006, 2, 6, 0.22], [7084, 3, 3, 0.13], [1654, 2, 3, 0.1], [13028, 3, 7, 0.44], [74, 1, 5, 0.61], [201, 3, 6, 0.26], [335, 3, 18, 0.21], [10574, 3, 7, 0.17], [11737, 2, 5, 0.29], [417, 2, 9, 0.27], [21798, 1, 5, 0.17], [214, 3, 16, 0.18], [1656, 2, 3, 0.1], [345, 3, 6, 0.26], [378, 2, 7, 0.44], [3889, 1, 4, 0.14], [3893, 1, 4, 0.17], [8939, 2, 4, 0.0], [1492, 1, 8, 0.37], [6569, 7, 27, 0.0], [20258, 2, 5, 0.25], [5208, 3, 11, 0.13], [11234, 2, 8, 0.25], [8853, 2, 15, 0.55], [411, 2, 3, 0.19], [3891, 1, 3, 0.16], [19925, 2, 5, 0.47], [152, 21, 3, 0.14], [7887, 4, 4, 0.15], [3495, 3, 23, 0.28], [23, 1, 3, 0.01], [6158, 2, 10, 0.12], [414, 1, 3, 0.29], [161, 3, 10, 0.29], [10825, 21, 11, 0.23], [84, 2, 3, 0.19], [997, 2, 6, 0.11], [12721, 2, 8, 0.34], [94, 4, 3, 0.42], [1504, 2, 8, 0.48], [5086, 1, 8, 0.0], [308, 1, 14, 0.38], [79, 1, 3, 0.22], [998, 2, 6, 0.1], [96, 11, 22, 0.27], [416, 1, 3, 0.29], [346, 3, 4, 0.26], [1490, 1, 8, 0.25], [415, 1, 4, 0.29], [25, 1, 3, 0.25], [7005, 1, 3, 0.18], [9827, 3, 3, 0.21], [11404, 2, 10, 0.23], [307, 2, 4, 0.25], [8651, 2, 5, 0.42], [229, 1, 3, 0.38], [1243, 2, 7, 0.21], [1124, 2, 9, 0.22], [10993, 2, 9, 0.22], [6220, 7, 12, 0.0], [12225, 1, 4, 0.2], [5812, 3, 7, 0.25], [8274, 3, 7, 0.16], [6395, 7, 19, 0.0], [950, 1, 10, 0.12], [5209, 3, 9, 0.13], [1413, 15, 3, 0.2], [11811, 1, 6, 0.32], [2109, 1, 9, 0.22], [9690, 1, 3, 0.21], [66, 1, 8, 0.19], [5513, 2, 5, 0.18], [6224, 7, 15, 0.0], [20256, 2, 4, 0.31], [996, 2, 5, 0.07], [2049, 1, 4, 0.14], [35, 1, 3, 0.16], [11490, 1, 3, 0.19], [20927, 1, 4, 0.18], [21269, 3, 4, 1.01], [7036, 1, 10, 0.51], [22247, 2, 7, 0.34], [11739, 2, 4, 0.29], [418, 2, 3, 0.23], [1070, 7, 13, 0.25], [7567, 3, 3, 0.27], [1126, 2, 5, 0.21], [6097, 29, 16, 0.46], [33, 1, 6, 0.31], [2160, 68, 4, 0.2], [995, 2, 5, 0.23], [6098, 80, 3, 0.39], [126, 2, 3, 0.2], [6097, 80, 3, 0.46], [8945, 3, 5, 0.79], [336, 15, 3, 0.16], [432, 3, 4, 0.23], [11681, 2, 13, 0.79], [10148, 1, 5, 0.14], [1703, 2, 7, 0.56], [161, 1, 7, 0.29], [14037, 3, 7, 0.15], [11808, 1, 7, 0.28], [1655, 2, 3, 0.33], [95, 3, 73, 0.96], [1163, 3, 8, 0.21], [13967, 1, 4, 0.18], [9829, 3, 3, 0.18], [10944, 7, 10, 0.0], [5660, 2, 6, 0.75], [13260, 29, 4, 0.32], [6221, 7, 10, 0.0], [159, 3, 8, 0.16], [9069, 1, 3, 0.22], [11489, 1, 3, 0.25], [110, 4, 4, 0.51], [12870, 1, 9, 0.48], [59, 3, 9, 0.32], [21793, 1, 14, 0.62], [8121, 3, 5, 0.14], [114, 3, 3, 0.16], [10529, 29, 18, 0.41], [9784, 1, 3, 0.26], [11767, 1, 5, 0.0], [8926, 1, 7, 0.37], [5584, 3, 4, 0.65], [8635, 3, 5, 0.16], [2878, 1, 5, 1.38], [60, 3, 9, 0.26], [66, 16, 3, 0.19], [330, 3, 4, 0.51], [6098, 29, 12, 0.39], [8677, 3, 6, 0.16], [8675, 2, 6, 0.31], [11954, 1, 4, 0.27], [5005, 3, 8, 0.22], [13034, 3, 7, 0.42], [2775, 2, 4, 0.37], [5946, 1, 3, 0.38], [82, 2, 3, 0.18], [105, 3, 3, 0.16], [8120, 3, 5, 0.14], [952, 4, 3, 0.51], [62, 3, 11, 0.36], [8943, 3, 4, 0.28], [6398, 332, 10, 0.0], [1414, 15, 3, 0.2], [24, 1, 3, 0.07], [11914, 1, 11, 0.28], [22316, 3, 6, 0.28], [22179, 1, 4, 0.27], [10631, 2, 4, 0.28], [972, 3, 6, 0.26], [9760, 29, 5, 0.05], [11738, 2, 3, 0.29], [3980, 4, 5, 0.35], [856, 1, 3, 0.18], [142, 2, 5, 0.27], [434, 2, 9, 0.37], [27, 1, 3, 0.07], [9081, 3, 12, 0.4], [2322, 2, 4, 0.33], [97, 11, 20, 0.38], [12661, 1, 5, 1.12], [8104, 1, 8, 0.02], [11491, 2, 3, 0.23], [2109, 3, 13, 0.22], [8898, 3, 5, 0.8], [6218, 7, 6, 0.0], [11769, 1, 5, 0.0], [39, 1, 3, 0.31], [13965, 1, 4, 0.19], [66, 15, 3, 0.19], [9082, 3, 23, 0.48], [11081, 3, 4, 0.55], [8286, 2, 6, 0.15], [107, 2, 5, 0.31], [6341, 3, 11, 0.0], [6396, 7, 9, 0.0], [20255, 2, 7, 0.38], [2497, 2, 6, 0.6], [2104, 3, 9, 0.32], [583, 2, 4, 0.23], [1091, 1, 3, 0.18], [590, 15, 3, 0.13], [12924, 1, 6, 0.16], [71, 15, 3, 0.19], [34, 1, 3, 0.31], [6222, 7, 6, 0.0], [13964, 1, 4, 0.22], [13968, 1, 3, 0.2], [6561, 3, 7, 0.0], [38, 1, 3, 0.31], [5813, 3, 4, 0.37], [524, 1, 3, 0.28], [431, 2, 8, 0.11], [2423, 80, 5, 0.4], [9372, 1, 12, 0.23], [6225, 7, 8, 0.0], [7558, 3, 3, 0.16], [11116, 1, 4, 0.15], [9691, 1, 3, 0.21], [1080, 3, 3, 1.13], [5811, 3, 4, 0.35], [1519, 3, 16, 0.18], [490, 1, 6, 0.25], [399, 24, 3, 0.35], [13962, 1, 3, 0.21], [20486, 3, 6, 0.52], [6497, 1, 8, 0.37], [4203, 1, 4, 0.19], [20486, 1, 3, 0.0], [2331, 1, 3, 0.33], [9065, 2, 4, 0.12], [345, 1, 6, 0.0], [6799, 7, 9, 0.0], [6525, 7, 14, 0.0], [8283, 2, 5, 0.16], [584, 2, 3, 0.23], [11770, 1, 6, 0.21], [11674, 1, 4, 0.0], [170, 3, 4, 0.44], [10407, 10, 9, 1.05], [10780, 10, 4, 0.72], [11671, 1, 7, 0.4], [6398, 1, 4, 0.0], [3670, 2, 10, 0.52], [14017, 3, 4, 0.08], [20498, 1, 5, 0.0], [406, 3, 8, 0.42], [5086, 3, 4, 0.85], [286, 3, 4, 0.38], [159, 1, 8, 0.15], [5083, 2, 7, 0.2], [10406, 10, 9, 0.33], [3900, 3, 3, 0.31], [1339, 3, 14, 0.18], [2703, 3, 4, 0.29], [13484, 1, 5, 0.5], [11454, 2, 12, 1.79], [9507, 1, 3, 0.1], [6805, 1, 5, 0.28], [8945, 1, 3, 0.0], [2424, 80, 5, 0.44], [922, 1, 3, 0.08], [19931, 1, 5, 0.17], [13033, 3, 7, 0.42], [974, 3, 5, 0.35], [12662, 1, 3, 0.29], [435, 2, 5, 0.37], [11794, 2, 6, 0.13], [1699, 3, 3, 0.27], [12496, 3, 5, 0.26], [9796, 3, 11, 0.33], [11085, 2, 6, 0.19], [11504, 2, 3, 0.23], [10529, 80, 5, 0.41], [11953, 1, 5, 0.64], [972, 1, 3, 0.26], [957, 2, 4, 0.16], [10172, 3, 7, 0.5], [12059, 3, 5, 0.17], [2424, 29, 22, 0.44], [9828, 3, 3, 0.21], [3016, 68, 3, 0.15], [93, 11, 17, 0.36], [6342, 3, 9, 0.0], [12058, 3, 5, 0.17], [6494, 1, 4, 0.38], [3475, 2, 3, 0.27], [12764, 2, 6, 0.28], [14018, 3, 4, 0.07], [40, 1, 3, 0.07], [11159, 1, 20, 0.35], [788, 2, 3, 0.2], [22554, 10, 11, 0.26], [389, 4, 3, 0.36], [7324, 1, 3, 0.25], [9613, 1, 3, 0.07], [22317, 3, 6, 0.3], [215, 4, 3, 0.5], [6223, 7, 5, 0.0], [2336, 3, 7, 0.22], [20498, 3, 6, 0.42], [9854, 1, 3, 0.42], [2537, 1, 3, 0.26], [21059, 1, 5, 0.32], [12369, 3, 9, 0.68], [2776, 2, 4, 0.37], [6575, 3, 4, 0.41], [973, 3, 8, 0.31], [424, 11, 11, 0.42], [6560, 3, 6, 0.0], [202, 2, 3, 0.16], [2991, 1, 3, 0.42], [10530, 29, 14, 0.4], [3456, 3, 4, 0.22], [14041, 3, 4, 0.14], [9964, 2, 4, 0.37], [12497, 3, 5, 0.26], [470, 1, 3, 0.13], [991, 2, 3, 0.27], [1661, 3, 3, 0.27], [823, 1, 6, 0.4], [6207, 7, 9, 0.0], [12923, 1, 7, 0.16], [1087, 1, 4, 0.29], [12269, 2, 3, 0.22], [11510, 3, 6, 0.32], [6792, 2, 3, 0.22], [3104, 1, 7, 0.44], [11687, 2, 4, 0.1], [7729, 7, 10, 0.0], [11952, 1, 5, 0.68], [2103, 15, 3, 0.2], [12355, 3, 4, 0.66], [9049, 2, 3, 0.31], [11080, 3, 4, 0.81], [523, 2, 4, 0.27], [26, 1, 3, 0.07], [2726, 3, 4, 0.48], [11689, 2, 4, 0.1], [951, 4, 3, 0.25], [1604, 68, 3, 0.31], [8944, 3, 3, 0.17], [471, 1, 3, 0.14], [491, 10, 9, 0.29], [2854, 21, 8, 0.23], [19047, 3, 4, 0.12], [36, 1, 3, 0.31], [12223, 1, 3, 0.26], [2423, 29, 14, 0.4], [9797, 3, 10, 0.33], [10397, 3, 4, 0.34], [6206, 3, 8, 0.0], [5453, 1, 4, 0.39], [3892, 1, 3, 0.32], [585, 2, 3, 0.18], [37, 1, 3, 0.31], [19971, 3, 4, 0.26], [11089, 1, 5, 0.29], [9785, 1, 3, 0.26], [12362, 3, 5, 0.66], [7724, 3, 3, 0.36], [9, 1, 3, 0.17], [2879, 1, 3, 0.27], [10172, 1, 5, 0.5], [5585, 3, 4, 0.63], [949, 10, 7, 0.2], [9998, 80, 3, 0.22], [409, 1, 3, 0.19], [5165, 1, 14, 0.19], [5734, 2, 3, 0.17], [6422, 3, 4, 0.33], [8285, 2, 4, 0.18], [107, 7, 6, 0.31], [1895, 3, 4, 0.42], [1413, 16, 3, 0.2], [11690, 2, 4, 0.11], [20649, 1, 3, 0.38], [3341, 3, 3, 0.54], [18, 1, 4, 0.07], [6565, 7, 8, 0.0], [1801, 1, 3, 0.37], [7007, 1, 3, 0.24], [13110, 3, 7, 0.68], [11813, 1, 4, 0.28], [10409, 10, 8, 0.32], [11903, 332, 9, 0.0], [10408, 10, 8, 0.27], [6209, 7, 7, 0.0], [21060, 1, 4, 0.31], [18964, 1, 3, 0.28], [10410, 10, 7, 1.04], [8557, 3, 4, 0.2], [3899, 3, 3, 0.2], [440, 3, 3, 0.88], [8904, 7, 16, 0.0], [3143, 3, 3, 0.44], [10093, 3, 12, 0.44], [201, 1, 4, 0.0], [9830, 3, 3, 0.18], [10537, 3, 5, 0.18], [6235, 7, 10, 0.0], [1667, 3, 3, 0.27], [6198, 7, 8, 0.0], [3429, 15, 3, 0.19], [13258, 25, 4, 0.36], [4076, 3, 4, 0.46], [2990, 3, 4, 0.37], [615, 2, 23, 0.27], [956, 2, 4, 0.2], [169, 4, 3, 0.22], [6630, 3, 3, 0.26], [2912, 1, 13, 0.2], [1185, 3, 3, 0.55], [1339, 1, 3, 0.18], [1070, 2, 3, 0.26], [13263, 29, 5, 0.29], [289, 3, 4, 0.32], [13259, 25, 3, 0.46], [8897, 3, 4, 0.8], [19583, 3, 4, 0.4], [13258, 29, 8, 0.36], [10514, 3, 5, 0.14], [11707, 3, 5, 0.39], [11812, 1, 5, 0.19], [3049, 3, 4, 0.44], [3610, 24, 3, 0.54], [1049, 2, 3, 0.18], [3894, 1, 3, 0.39], [407, 3, 5, 0.42], [11768, 1, 4, 0.0], [1309, 1, 3, 0.29], [11772, 1, 6, 0.66], [11771, 1, 5, 0.0], [12358, 3, 6, 0.66], [10936, 2, 3, 0.54], [10482, 7, 11, 0.0], [8927, 10, 12, 0.15], [288, 3, 4, 0.32], [11084, 2, 4, 0.19], [2859, 15, 3, 0.28], [6343, 3, 7, 0.0], [5493, 2, 9, 0.29], [10717, 3, 5, 0.18], [12964, 3, 4, 0.67], [11160, 1, 10, 0.36], [71, 16, 3, 0.19], [5646, 2, 3, 0.19], [5730, 2, 3, 0.17], [2105, 3, 7, 0.22], [11814, 1, 4, 0.21], [11087, 2, 4, 0.19], [2729, 3, 3, 0.47], [11485, 24, 4, 0.74], [7182, 1, 3, 0.27], [6339, 3, 6, 0.0], [4253, 1, 4, 0.31], [5435, 1, 3, 0.19], [6952, 1, 8, 0.39], [11793, 2, 10, 0.4], [515, 24, 4, 0.51], [11088, 2, 4, 0.19], [2318, 2, 3, 0.21], [11213, 4, 4, 1.06], [11179, 1, 4, 0.22], [111, 1, 3, 0.07], [11644, 1, 3, 0.28], [5434, 1, 3, 0.28], [70, 16, 3, 0.17], [6540, 25, 3, 0.38], [12357, 3, 5, 0.67], [6424, 3, 4, 0.36], [19932, 1, 5, 0.19], [3257, 4, 3, 0.52], [10939, 2, 3, 0.54], [10530, 80, 4, 0.41], [2774, 2, 7, 0.6], [23961, 3, 3, 0.27], [6259, 7, 24, 0.0], [10716, 3, 4, 0.13], [380, 2, 3, 0.17], [20555, 2, 3, 0.3], [11180, 1, 4, 0.21], [5490, 2, 3, 0.23], [5666, 2, 3, 0.38], [9786, 1, 3, 0.26], [1622, 1, 8, 0.14], [5165, 2, 6, 0.19], [12373, 1, 10, 0.2], [21712, 3, 17, 0.25], [616, 2, 16, 0.28], [11586, 1, 8, 0.4], [405, 3, 5, 0.42], [2108, 3, 7, 0.18], [8676, 2, 7, 0.31], [6340, 3, 5, 0.0], [9783, 1, 3, 0.3], [11526, 10, 8, 0.15], [1413, 1, 3, 0.2], [3994, 1, 3, 0.19], [159, 16, 3, 0.15], [21703, 3, 4, 0.52], [10411, 10, 6, 0.28], [11677, 1, 10, 0.43], [6864, 1, 3, 0.35], [3434, 2, 3, 0.33], [10488, 7, 9, 0.0], [12356, 3, 4, 0.52], [5153, 2, 12, 0.06], [3059, 3, 3, 0.46], [2422, 80, 4, 0.42], [6259, 1, 3, 0.0], [13323, 3, 4, 0.26], [9358, 1, 4, 0.35], [12229, 2, 3, 0.28], [3047, 3, 5, 0.44], [13893, 2, 4, 0.37], [8054, 1, 3, 0.32], [11706, 3, 4, 0.25], [2103, 16, 3, 0.2], [3961, 1, 3, 0.19], [13259, 29, 8, 0.0], [12010, 3, 3, 0.0], [12501, 1, 4, 0.0], [9787, 1, 3, 0.27], [880, 2, 3, 0.76], [19972, 3, 4, 0.26], [2368, 3, 6, 0.14], [563, 2, 3, 0.17], [20969, 3, 6, 0.58], [1050, 2, 3, 0.18], [11039, 2, 4, 0.47], [10941, 2, 3, 0.54], [10406, 1, 3, 0.31], [10633, 2, 3, 0.28], [11236, 2, 4, 0.32], [10940, 2, 3, 0.54], [147, 1, 3, 0.37], [6317, 7, 11, 0.0], [10828, 7, 18, 0.0], [1414, 16, 3, 0.2], [13023, 3, 7, 0.3], [12925, 1, 5, 0.15], [8510, 7, 12, 0.0], [11856, 1, 3, 0.39], [11710, 1, 8, 0.22], [6562, 3, 4, 0.0], [3430, 15, 3, 0.3], [2912, 2, 7, 0.2], [10149, 1, 3, 0.17], [5812, 1, 3, 0.24], [8891, 1, 4, 0.0], [9491, 21, 9, 0.22], [7457, 3, 7, 0.21], [8753, 2, 4, 0.27], [2369, 3, 5, 0.21], [7707, 2, 4, 0.31], [11399, 2, 3, 0.23], [8685, 3, 4, 0.72], [6219, 7, 4, 0.0], [1602, 68, 3, 0.54], [11164, 1, 13, 0.48], [942, 3, 4, 0.32], [13264, 29, 3, 0.24], [789, 2, 3, 0.2], [10398, 2, 5, 0.23], [332, 2, 3, 0.16], [11967, 1, 3, 0.19], [5491, 2, 5, 0.28], [1668, 1, 3, 0.3], [10516, 3, 4, 0.36], [12361, 3, 4, 0.67], [6566, 7, 5, 0.0], [3981, 3, 13, 0.43], [10626, 7, 10, 0.0], [21697, 3, 3, 0.28], [7702, 2, 9, 0.31], [1548, 1, 4, 0.3], [10407, 1, 3, 0.0], [220, 4, 3, 0.52], [8284, 2, 4, 0.17], [1065, 7, 11, 0.22], [21704, 3, 16, 0.19], [2335, 3, 4, 0.41], [13498, 3, 5, 0.46], [148, 1, 3, 0.37], [12369, 1, 5, 0.0], [8756, 2, 4, 0.27], [3840, 1, 3, 0.18], [23611, 3, 4, 0.41], [11919, 1, 7, 0.18], [12526, 2, 5, 0.24], [354, 2, 3, 0.16], [11710, 3, 6, 0.22], [353, 1, 3, 0.31], [21683, 3, 4, 0.4], [9803, 3, 10, 0.19], [6034, 23, 6, 0.45], [11402, 1, 4, 0.42], [7704, 2, 4, 0.31], [6570, 7, 7, 0.0], [3674, 2, 8, 0.44], [11427, 2, 4, 0.15], [10536, 3, 4, 0.16], [6266, 23, 11, 0.21], [6628, 3, 3, 0.18], [439, 1, 3, 0.4], [6540, 29, 9, 0.38], [2728, 3, 3, 0.32], [6800, 7, 5, 0.0], [10632, 2, 3, 0.28], [20188, 3, 3, 0.61], [6627, 3, 3, 0.17], [975, 3, 4, 0.15], [4176, 4, 4, 0.35], [11643, 1, 3, 0.28], [2733, 3, 3, 0.47], [2099, 2, 3, 0.28], [13481, 1, 3, 0.5], [1767, 25, 4, 0.22], [4372, 10, 10, 0.32], [3340, 3, 3, 0.78], [947, 15, 3, 0.26], [2803, 2, 10, 0.52], [11104, 3, 3, 0.76], [10630, 2, 3, 0.28], [9971, 2, 3, 0.37], [9124, 1, 4, 0.36], [1038, 2, 4, 0.11], [11717, 3, 4, 0.92], [11494, 1, 3, 0.19], [2438, 2, 7, 0.22], [22029, 3, 3, 0.48], [9997, 80, 3, 0.38], [3258, 1, 4, 0.34], [247, 1, 3, 0.39], [8636, 3, 5, 0.64], [12417, 1, 4, 0.31], [3982, 3, 13, 0.42], [11846, 3, 4, 0.29], [1601, 68, 3, 0.55], [10937, 2, 3, 0.54], [2538, 1, 3, 0.0], [6496, 1, 6, 0.53], [6567, 7, 10, 0.0], [21269, 1, 3, 0.0], [11163, 1, 18, 0.39], [8754, 2, 4, 0.18], [6629, 3, 3, 0.21], [958, 2, 3, 0.18], [21699, 3, 5, 0.29], [1120, 1, 4, 0.18], [20650, 1, 3, 0.4], [3021, 68, 3, 0.19], [13483, 1, 3, 0.5], [11450, 2, 4, 0.14], [14039, 3, 5, 0.18], [11868, 3, 5, 0.29], [7705, 2, 5, 0.31], [13024, 3, 6, 0.48], [22318, 3, 4, 0.41], [19583, 1, 3, 0.0], [6234, 7, 8, 0.0], [11181, 1, 11, 0.48], [11887, 2, 4, 0.24], [12979, 25, 9, 0.29], [2436, 4, 3, 0.5], [590, 16, 3, 0.13], [167, 1, 4, 0.0], [2422, 29, 6, 0.42], [292, 3, 4, 0.32], [7885, 1, 3, 0.13], [1766, 25, 5, 0.21], [9945, 3, 5, 0.15], [5939, 3, 3, 0.31], [8600, 1, 3, 0.31], [3258, 7, 5, 0.34], [3898, 3, 3, 0.21], [10524, 29, 6, 0.4], [23339, 3, 3, 0.2], [11611, 2, 3, 0.23], [8688, 14, 6, 0.28], [22565, 3, 4, 0.37], [2821, 3, 10, 0.23], [2738, 3, 4, 0.44], [624, 2, 15, 0.29], [12304, 1, 5, 0.41], [11583, 29, 4, 0.18], [3909, 7, 11, 0.32], [96, 1, 5, 0.0], [7360, 3, 3, 0.2], [21713, 3, 10, 0.18], [5152, 2, 7, 0.47], [11773, 1, 4, 0.3], [2992, 3, 4, 0.49], [21700, 3, 3, 0.53], [11885, 2, 4, 0.24], [6668, 332, 9, 0.0], [109, 4, 3, 0.51], [7522, 7, 14, 0.0], [11161, 1, 8, 0.3], [21476, 7, 6, 0.47], [938, 3, 4, 0.32], [13482, 1, 3, 0.5], [192, 3, 10, 0.29], [10412, 10, 6, 0.2], [9204, 3, 4, 0.0], [80, 1, 3, 0.28], [8891, 7, 19, 0.0], [10825, 1, 4, 0.22], [12271, 2, 3, 0.22], [2727, 3, 3, 0.54], [336, 16, 3, 0.17], [955, 2, 4, 0.42], [12647, 1, 4, 0.34], [6236, 7, 9, 0.0], [216, 4, 3, 0.31], [21003, 2, 4, 0.42], [11467, 1, 3, 0.38], [11183, 1, 6, 0.71], [6399, 7, 16, 0.0], [12241, 3, 4, 0.14], [19977, 2, 8, 0.94], [2421, 80, 4, 0.2], [1701, 2, 3, 0.79], [11886, 2, 4, 0.27], [22558, 3, 4, 0.87], [10527, 3, 10, 0.45], [944, 15, 3, 0.15], [8902, 7, 10, 0.0], [9910, 25, 3, 0.18], [13491, 7, 4, 0.45], [10581, 3, 4, 0.61], [21317, 3, 3, 0.17], [1274, 1, 3, 0.41], [2417, 29, 6, 0.34], [408, 3, 4, 0.42], [186, 3, 8, 0.3], [8356, 1, 3, 0.29], [12360, 3, 4, 0.66], [11158, 1, 19, 0.37], [11890, 2, 4, 0.7], [1299, 3, 7, 0.24], [4372, 1, 3, 0.34], [13025, 3, 6, 0.49], [7300, 7, 11, 0.0], [448, 1, 3, 0.22], [11936, 2, 3, 0.54], [10524, 80, 3, 0.4], [2935, 1, 3, 0.2], [344, 25, 3, 0.32], [632, 11, 16, 0.0], [72, 1, 3, 0.3], [2108, 1, 3, 0.18], [8659, 1, 3, 0.19], [3975, 4, 3, 0.35], [331, 3, 4, 0.22], [9068, 1, 3, 0.24], [5940, 3, 3, 0.3], [9138, 2, 4, 0.33], [11495, 1, 3, 0.3], [2916, 1, 3, 0.22], [9778, 1, 3, 0.27], [2326, 2, 3, 0.0], [8686, 3, 5, 0.72], [3088, 1, 3, 0.15], [3559, 11, 14, 0.17], [5083, 12, 11, 0.21], [22590, 1, 3, 0.18], [7703, 2, 3, 0.31], [11718, 3, 4, 0.92], [11775, 1, 4, 0.32], [12728, 1, 4, 0.0], [3977, 3, 3, 0.48], [5007, 3, 5, 0.29], [8943, 1, 3, 0.28], [11288, 2, 3, 1.19], [6267, 23, 10, 0.21], [454, 3, 4, 0.32], [3908, 7, 9, 0.65], [21316, 3, 3, 0.17], [7708, 2, 3, 0.31], [10413, 10, 5, 0.62], [11678, 1, 6, 0.58], [6787, 7, 8, 0.0], [5076, 1, 15, 0.34], [8599, 1, 3, 0.35], [10409, 1, 3, 0.3], [3983, 4, 3, 0.35], [9342, 2, 4, 0.7], [10616, 1, 3, 0.0], [6394, 1, 3, 0.0], [23491, 3, 3, 0.13], [2100, 25, 3, 0.25], [7521, 7, 11, 0.0], [9777, 1, 3, 0.26], [1880, 4, 3, 1.05], [11090, 1, 3, 0.15], [19582, 3, 4, 0.4], [11968, 1, 3, 0.1], [7513, 1, 3, 0.0], [19764, 2, 5, 0.15], [5111, 1, 3, 0.35], [2161, 1, 3, 0.19], [1414, 1, 3, 0.2], [973, 1, 3, 0.0], [9126, 1, 5, 0.36], [11435, 2, 4, 0.14], [13257, 25, 3, 0.35], [12791, 2, 7, 0.21], [7513, 7, 16, 0.0], [6233, 7, 11, 0.0], [5658, 68, 3, 0.18], [4032, 29, 8, 0.41], [3551, 3, 3, 0.21], [9996, 80, 3, 0.46], [21927, 1, 3, 0.12], [9533, 7, 9, 0.0], [23489, 3, 3, 0.38], [5494, 2, 3, 0.28], [11304, 2, 3, 1.19], [12053, 2, 5, 0.38], [12368, 3, 4, 0.68], [71, 1, 3, 0.19], [7886, 1, 3, 0.15], [12621, 1, 3, 0.4], [6235, 1, 3, 0.0], [12722, 2, 4, 0.34], [8085, 1, 3, 0.29], [10483, 7, 7, 0.0], [9965, 2, 3, 0.37], [11587, 1, 6, 0.46], [11564, 29, 7, 0.21], [12363, 3, 4, 0.66], [11178, 1, 3, 0.2], [8068, 3, 9, 0.0], [334, 25, 3, 0.31], [13107, 3, 5, 1.09], [28, 1, 3, 0.33], [20196, 2, 5, 0.42], [23341, 3, 3, 0.2], [436, 2, 4, 0.35], [9083, 3, 4, 0.36], [8681, 3, 4, 0.18], [12417, 3, 5, 0.33], [13036, 3, 5, 0.48], [11961, 1, 3, 0.22], [21683, 1, 3, 0.0], [19581, 3, 4, 0.4], [9803, 138, 3, 0.19], [11409, 7, 9, 0.22], [17, 1, 3, 0.08], [12979, 1, 3, 0.29], [14029, 3, 3, 0.3], [3028, 3, 3, 0.15], [21806, 1, 3, 0.0], [20190, 3, 4, 0.62], [2735, 3, 3, 0.54], [1055, 2, 3, 0.14], [5644, 3, 3, 0.73], [8188, 10, 7, 0.2], [12234, 3, 3, 0.71], [7250, 3, 4, 0.16], [1300, 3, 4, 0.32], [21946, 1, 3, 0.49], [11920, 1, 5, 0.19], [14038, 3, 4, 0.26], [12913, 3, 3, 0.14], [11858, 1, 3, 0.39], [6036, 23, 4, 0.45], [560, 1, 3, 0.51], [1431, 3, 5, 0.24], [11960, 3, 4, 0.12], [7706, 2, 3, 0.31], [2417, 80, 3, 0.34], [2323, 2, 3, 0.33], [5452, 1, 3, 0.28], [8896, 1, 3, 0.51], [2945, 3, 4, 0.41], [21783, 2, 3, 0.17], [8637, 3, 5, 0.69], [1066, 7, 7, 0.11], [19341, 2, 3, 0.18], [23493, 3, 3, 0.13], [11048, 1, 4, 0.24], [3079, 3, 3, 0.22], [10082, 23, 7, 0.29], [5642, 3, 3, 0.73], [10780, 3, 3, 0.72], [5341, 15, 3, 0.28], [2734, 3, 3, 1.07], [5831, 3, 3, 0.73], [12235, 3, 3, 0.71], [1767, 2, 3, 0.22], [2013, 2, 3, 0.39], [506, 1, 3, 0.37], [168, 1, 3, 0.26], [10080, 3, 3, 0.0], [9995, 80, 3, 0.17], [12055, 2, 4, 0.38], [10487, 7, 6, 0.0], [6055, 3, 4, 0.24], [6195, 7, 8, 0.0], [2528, 29, 3, 0.26], [11844, 2, 5, 0.3], [2730, 3, 3, 0.47], [19375, 3, 3, 0.16], [1120, 3, 5, 0.18], [12535, 2, 3, 0.15], [12653, 1, 7, 0.17], [12054, 2, 4, 0.38], [13104, 3, 5, 1.08], [11930, 1, 3, 0.58], [10521, 3, 4, 0.32], [11150, 1, 3, 0.18], [3477, 2, 3, 0.21], [214, 1, 3, 0.19], [12212, 29, 5, 0.24], [9355, 1, 6, 0.27], [13266, 29, 3, 0.22], [8286, 1, 3, 0.16], [21781, 2, 3, 0.14], [3910, 7, 8, 0.33], [3673, 2, 6, 0.53], [1523, 1, 3, 0.47], [10531, 14, 8, 0.25], [11157, 11, 7, 0.17], [9781, 1, 3, 0.29], [6035, 23, 4, 0.45], [6056, 3, 5, 0.24], [10638, 2, 3, 0.28], [12236, 3, 5, 0.15], [3553, 3, 3, 0.21], [20963, 3, 4, 0.58], [4232, 80, 4, 0.41], [3016, 3, 3, 0.15], [9070, 1, 3, 0.18], [11855, 1, 3, 0.39], [10816, 3, 4, 1.0], [12490, 2, 3, 0.33], [13133, 3, 4, 0.68], [936, 3, 5, 0.37], [12729, 1, 4, 0.0], [2104, 1, 3, 0.31], [12270, 2, 3, 0.23], [23960, 3, 3, 0.32], [12367, 3, 4, 0.67], [4175, 3, 10, 0.43], [10275, 3, 4, 0.19], [20920, 3, 4, 0.26], [3906, 14, 5, 0.29], [1766, 2, 3, 0.21], [10408, 1, 4, 0.26], [8683, 3, 5, 0.27], [10540, 3, 3, 0.16], [12935, 3, 4, 0.39], [21010, 2, 3, 0.42], [21705, 3, 8, 0.49], [12057, 2, 5, 0.38], [13257, 29, 6, 0.35], [7084, 1, 3, 0.0], [13249, 29, 16, 0.68], [23494, 3, 3, 0.13], [7457, 1, 4, 0.21], [8904, 1, 3, 0.0], [19331, 2, 3, 0.16], [3337, 1, 3, 0.34], [13037, 3, 4, 0.48], [19924, 2, 5, 0.19], [9186, 29, 3, 0.2], [10828, 1, 3, 0.0], [10414, 10, 5, 0.2], [432, 1, 3, 0.24], [22693, 3, 3, 0.23], [5343, 15, 3, 0.26], [6208, 7, 7, 0.0], [1886, 2, 4, 1.04], [9840, 25, 7, 0.2], [21480, 7, 6, 0.5], [10114, 3, 12, 0.0], [10410, 1, 3, 0.0], [12365, 3, 5, 0.51], [2103, 1, 3, 0.2], [6957, 7, 13, 0.41], [20259, 2, 3, 0.24], [21807, 1, 3, 0.0], [8281, 2, 4, 0.7], [5650, 2, 3, 0.2], [2736, 3, 3, 0.54], [1575, 1, 3, 0.34], [13268, 29, 3, 0.4], [149, 2, 3, 0.37], [344, 2, 3, 0.32], [1024, 1, 3, 0.17], [60, 1, 3, 0.27], [22696, 3, 3, 0.23], [5340, 23, 5, 0.2], [23492, 3, 3, 0.13], [11618, 1, 3, 0.26], [70, 1, 3, 0.17], [11867, 3, 4, 0.32], [4586, 10, 14, 0.2], [825, 1, 3, 0.13], [21810, 1, 3, 0.0], [21809, 1, 3, 0.0], [2539, 29, 5, 0.18], [3562, 3, 3, 0.21], [9087, 25, 3, 0.4], [1409, 15, 3, 0.18], [11091, 1, 3, 0.15], [5577, 3, 3, 0.66], [11290, 2, 3, 1.19], [20964, 3, 6, 0.58], [21170, 10, 7, 0.3], [13106, 3, 4, 1.08], [11895, 1, 4, 0.14], [19334, 2, 3, 0.17], [9788, 1, 3, 0.26], [11054, 3, 4, 0.87], [8586, 7, 7, 0.0], [1765, 25, 4, 0.61], [5976, 1, 3, 0.2], [8283, 1, 3, 0.17], [3905, 14, 5, 0.0], [9239, 25, 3, 0.38], [9841, 25, 8, 0.2], [21954, 10, 5, 0.3], [12764, 1, 3, 0.27], [9608, 1, 3, 0.07], [963, 3, 3, 0.37], [20966, 3, 4, 0.58], [23276, 3, 4, 0.39], [9344, 332, 5, 0.0], [11641, 1, 3, 0.28], [10669, 3, 4, 0.28], [11659, 3, 3, 0.45], [19223, 1, 3, 0.0], [11960, 1, 3, 0.12], [6197, 7, 9, 0.0], [13041, 3, 3, 0.21], [11896, 2, 3, 0.17], [10279, 3, 4, 0.81], [11962, 1, 3, 0.29], [9910, 29, 4, 0.18], [10517, 29, 10, 0.45], [21953, 10, 4, 0.3], [8106, 10, 3, 0.27], [11092, 1, 3, 0.15], [21701, 3, 3, 0.52], [2732, 3, 3, 0.57], [1068, 7, 9, 0.19], [7525, 7, 8, 0.0], [1139, 3, 3, 0.15], [5020, 23, 12, 0.24], [8674, 2, 5, 0.31], [3552, 3, 3, 0.21], [11150, 2, 6, 0.19], [22691, 3, 3, 0.23], [12646, 1, 4, 0.35], [20208, 3, 3, 0.15], [4033, 29, 13, 0.32], [12912, 3, 3, 0.15], [10668, 3, 4, 0.29], [3421, 3, 16, 0.15], [4898, 332, 3, 0.0], [4327, 1, 3, 0.21], [11339, 3, 3, 0.44], [110, 1, 3, 0.0], [1095, 2, 4, 0.16], [12239, 3, 4, 0.13], [2217, 1, 3, 0.22], [12871, 1, 9, 0.22], [20965, 3, 4, 0.58], [21463, 7, 4, 0.29], [23335, 14, 5, 0.28], [3071, 3, 3, 0.23], [10083, 23, 7, 0.29], [21820, 2, 3, 0.18], [3576, 25, 3, 0.31], [8058, 3, 4, 0.4], [11965, 1, 3, 0.18], [512, 24, 3, 1.08], [11859, 1, 3, 0.39], [2709, 15, 3, 0.28], [12240, 14, 3, 0.13], [31, 1, 3, 0.33], [6052, 3, 4, 0.23], [9967, 2, 3, 0.37], [2406, 29, 4, 0.35], [9998, 29, 3, 0.22], [21706, 3, 12, 0.16], [6785, 7, 8, 0.0], [8139, 7, 9, 0.0], [11526, 1, 3, 0.14], [59, 1, 3, 0.0], [5341, 16, 3, 0.28], [12474, 3, 4, 0.65], [6966, 3, 3, 0.44], [5243, 3, 4, 0.22], [9779, 1, 3, 0.29], [3334, 5, 5, 0.43], [21712, 1, 3, 0.22], [790, 2, 3, 0.14], [11105, 3, 3, 0.21], [23032, 3, 3, 0.3], [13034, 1, 3, 0.0], [8167, 7, 4, 0.4], [12159, 2, 3, 0.21], [14, 1, 3, 0.27], [19765, 2, 3, 0.15], [23040, 10, 6, 1.05], [11854, 1, 3, 0.39], [12426, 3, 4, 0.2], [21468, 7, 5, 0.28], [10384, 3, 3, 0.16], [12637, 1, 4, 0.24], [12538, 3, 5, 0.16], [152, 1, 3, 0.0], [21481, 7, 4, 0.48], [14040, 3, 4, 0.13], [22879, 3, 3, 0.28], [2990, 1, 4, 0.38], [11564, 80, 3, 0.21], [21698, 3, 3, 0.28], [13105, 3, 4, 1.08], [11156, 11, 5, 0.16], [22697, 3, 3, 0.23], [5648, 2, 3, 0.21], [3053, 3, 3, 0.31], [2325, 2, 3, 0.33], [19361, 23, 4, 0.19], [3970, 2, 3, 0.82], [5851, 1, 4, 0.14], [21955, 10, 4, 0.3], [22874, 3, 3, 0.28], [2805, 137, 5, 0.43], [2365, 3, 4, 0.31], [6057, 3, 4, 0.24], [1511, 3, 6, 0.16], [10507, 2, 3, 0.15], [11485, 1, 4, 0.0], [9253, 3, 4, 0.32], [2406, 80, 5, 0.35], [8280, 2, 4, 0.7], [9087, 29, 4, 0.4], [8279, 2, 4, 0.7], [11719, 3, 5, 1.11], [8191, 10, 7, 0.19], [6668, 1, 3, 0.0], [23275, 2, 3, 0.27], [3379, 3, 3, 0.31], [7362, 3, 3, 0.19], [12952, 21, 3, 0.68], [11891, 3, 6, 0.36], [8690, 10, 5, 0.17], [23490, 3, 3, 0.38], [2287, 25, 3, 0.35], [21686, 3, 7, 0.68], [7564, 7, 5, 0.0], [11894, 2, 3, 0.28], [2934, 1, 3, 0.19], [3048, 3, 5, 0.45], [11503, 1, 3, 0.65], [9544, 7, 6, 0.0], [12930, 2, 4, 0.17], [2366, 3, 3, 0.31], [7573, 1, 8, 0.32], [8906, 7, 8, 0.0], [1744, 1, 3, 0.32], [3495, 1, 3, 0.28], [10574, 1, 3, 0.17], [1406, 25, 3, 0.23], [2836, 3, 8, 0.23], [3575, 25, 3, 0.33], [2438, 1, 3, 0.22], [12340, 2, 3, 0.29], [8059, 3, 4, 0.4], [22910, 3, 4, 0.39], [19582, 1, 3, 0.0], [3462, 2, 3, 0.35], [3429, 16, 3, 0.19], [334, 2, 3, 0.0], [11722, 3, 4, 0.99], [10906, 3, 18, 0.19], [11613, 2, 3, 0.23], [11619, 1, 3, 0.26], [21474, 7, 3, 0.34], [5342, 23, 6, 0.19], [22553, 10, 9, 0.21], [9125, 1, 6, 0.36], [10254, 1, 3, 0.49], [11055, 3, 5, 0.98], [11633, 1, 3, 0.18], [22573, 2, 3, 0.27], [6489, 11, 16, 0.17], [12475, 3, 4, 0.55], [23234, 25, 3, 0.23], [11857, 1, 3, 0.39], [12517, 2, 5, 0.38], [394, 10, 7, 0.19], [4223, 4, 3, 0.4], [6054, 3, 4, 0.24], [11152, 11, 7, 0.18], [2835, 3, 7, 0.24], [10640, 3, 4, 0.32], [1691, 1, 3, 0.41], [3609, 24, 3, 0.32], [9209, 25, 3, 0.34], [11498, 1, 3, 0.27], [4001, 3, 13, 0.42], [21091, 7, 3, 0.15], [2169, 3, 4, 0.24], [21315, 3, 3, 0.17], [21626, 1, 3, 0.06], [8903, 7, 8, 0.0], [11306, 2, 3, 0.84], [12587, 3, 4, 0.38], [10455, 29, 3, 0.03], [20919, 3, 3, 0.19], [10580, 3, 4, 0.73], [88, 1, 3, 0.3], [12917, 3, 3, 0.14], [3561, 3, 3, 0.21], [20956, 7, 6, 0.31], [12675, 3, 3, 0.28], [3386, 1, 3, 0.51], [6931, 2, 3, 0.29], [12992, 3, 7, 0.2], [9346, 332, 4, 0.0], [22922, 3, 3, 0.4], [2100, 2, 3, 0.25], [6396, 1, 3, 0.0], [61, 1, 3, 0.0], [11642, 1, 3, 0.28], [12338, 29, 3, 0.17], [2608, 1, 3, 0.16], [11909, 3, 3, 0.3], [22921, 3, 3, 0.4], [2111, 3, 8, 0.19], [11085, 1, 3, 0.2], [2859, 16, 3, 0.27], [11154, 11, 8, 0.16], [7624, 7, 8, 0.0], [10640, 1, 4, 0.32], [9084, 3, 4, 0.36], [23992, 29, 6, 0.21], [3722, 25, 3, 0.14], [4672, 1, 3, 0.78], [23962, 3, 3, 0.27], [1851, 1, 3, 0.13], [12418, 3, 5, 0.33], [8682, 3, 5, 0.26], [6224, 1, 4, 0.0], [10639, 2, 3, 0.28], [9780, 1, 3, 0.29], [22330, 3, 3, 0.7], [5128, 1, 3, 0.24], [21169, 10, 5, 0.3], [3945, 23, 7, 0.26], [13272, 29, 4, 0.27], [12594, 7, 3, 0.14], [11529, 10, 6, 0.15], [1407, 25, 3, 0.13], [4030, 25, 3, 0.27], [6872, 25, 3, 0.26], [30, 1, 3, 0.32], [21808, 1, 3, 0.0], [3984, 3, 7, 0.43], [1803, 2, 3, 0.79], [20918, 3, 3, 0.3], [10707, 1, 4, 0.46], [12706, 23, 10, 0.0], [22585, 3, 3, 0.22], [13273, 29, 4, 0.3], [586, 1, 3, 0.27], [19343, 2, 3, 0.19], [5910, 10, 11, 0.15], [291, 3, 4, 0.32], [2731, 3, 3, 0.47], [10594, 3, 3, 0.22], [11056, 3, 4, 0.98], [1895, 1, 3, 0.0], [10411, 1, 6, 0.27], [2188, 2, 6, 0.21], [19358, 23, 5, 0.21], [8684, 3, 4, 0.19], [2985, 3, 4, 0.29], [11426, 25, 4, 0.31], [13324, 3, 5, 0.16], [12791, 1, 5, 0.22], [10484, 3, 5, 0.0], [12476, 3, 4, 0.55], [10722, 2, 3, 0.15], [14041, 1, 3, 0.13], [13294, 3, 3, 0.29], [22871, 7, 3, 0.28], [4927, 12, 3, 0.24], [9350, 3, 4, 0.21], [12162, 2, 3, 0.2], [12249, 14, 3, 0.14], [2421, 29, 3, 0.2], [12150, 1, 3, 0.15], [11931, 1, 3, 0.58], [3986, 4, 3, 0.35], [1080, 1, 8, 1.14], [7524, 7, 8, 0.0], [11253, 7, 6, 0.0], [5343, 16, 3, 0.27], [9085, 25, 3, 0.36], [11625, 29, 4, 0.2], [392, 4, 3, 0.36], [9150, 23, 4, 0.19], [23961, 1, 3, 0.27], [10525, 3, 4, 0.32], [5925, 1, 4, 0.15], [5652, 2, 3, 0.17], [10994, 2, 3, 0.23], [13108, 3, 5, 1.11], [2946, 3, 3, 0.51], [19581, 1, 3, 0.0], [691, 3, 3, 0.24], [803, 3, 3, 0.19], [23544, 3, 4, 0.26], [32, 1, 3, 0.31], [1743, 1, 3, 0.32], [19878, 1, 3, 0.16], [8155, 25, 3, 0.32], [12494, 3, 3, 0.15], [19339, 2, 3, 0.17], [13038, 3, 4, 0.49], [10635, 2, 3, 0.28], [382, 1, 3, 0.5], [23545, 3, 4, 0.26], [21822, 2, 3, 0.18], [6399, 1, 3, 0.0], [12496, 1, 3, 0.26], [8157, 80, 3, 0.36], [9960, 1, 7, 0.14], [9149, 23, 4, 0.17], [23903, 3, 4, 0.26], [3988, 4, 3, 0.39], [4222, 4, 3, 0.44], [12489, 1, 3, 0.29], [12379, 1, 3, 0.58], [12993, 3, 7, 0.2], [12418, 1, 3, 0.31], [11212, 4, 3, 1.06], [806, 3, 3, 0.19], [6346, 7, 4, 0.0], [8944, 1, 3, 0.18], [2367, 3, 4, 0.31], [21168, 10, 4, 0.3], [3577, 25, 3, 0.26], [19883, 1, 3, 0.16], [23039, 10, 5, 1.05], [12474, 1, 3, 0.0], [12536, 2, 3, 0.31], [11915, 3, 14, 0.19], [8234, 1, 3, 0.35], [12165, 2, 3, 0.2], [7361, 3, 3, 0.2], [12533, 7, 4, 0.14], [2234, 1, 3, 0.23], [12262, 3, 5, 0.44], [21167, 10, 5, 0.3], [333, 25, 3, 0.3], [11735, 3, 3, 0.28], [7358, 3, 3, 0.2], [21187, 10, 4, 1.48], [9671, 3, 4, 0.29], [11289, 2, 3, 1.19], [1453, 2, 3, 0.23], [10670, 3, 3, 0.24], [3723, 25, 3, 0.52], [1805, 2, 3, 0.44], [13293, 3, 4, 0.29], [962, 10, 7, 0.18], [22591, 1, 3, 0.18], [13274, 29, 4, 0.31], [7565, 7, 4, 0.0], [20997, 7, 6, 0.0], [4178, 68, 3, 0.18], [11420, 3, 3, 0.26], [5729, 2, 3, 0.34], [62, 1, 5, 0.37], [3430, 16, 3, 0.31], [2495, 2, 3, 0.21], [19685, 1, 3, 0.0], [1515, 1, 3, 0.16], [5645, 3, 3, 0.74], [11226, 1, 3, 0.15], [5188, 1, 3, 0.21], [9494, 1, 4, 0.2], [1063, 7, 6, 0.21], [3576, 29, 3, 0.31], [9820, 3, 3, 0.72], [11182, 1, 10, 0.79], [12723, 1, 3, 0.17], [3976, 3, 10, 0.43], [9960, 3, 3, 0.14], [6395, 1, 3, 0.0], [9209, 29, 4, 0.34], [3080, 3, 3, 0.23], [406, 1, 3, 0.0], [23337, 3, 3, 0.38], [2835, 138, 3, 0.23], [11411, 29, 3, 0.02], [11155, 11, 8, 0.16], [11527, 10, 6, 0.15], [10815, 3, 6, 1.11], [5007, 1, 3, 0.29], [11848, 1, 3, 0.28], [12335, 2, 3, 0.2], [4329, 3, 4, 0.24], [3583, 3, 3, 0.23], [13109, 3, 5, 1.09], [9356, 1, 3, 0.15], [12725, 1, 3, 0.17], [20670, 1, 3, 0.3], [6798, 7, 5, 0.0], [22877, 7, 3, 0.29], [9138, 23, 5, 0.35], [180, 15, 3, 0.18], [385, 1, 3, 0.49], [12585, 3, 4, 0.29], [335, 1, 3, 0.19], [22588, 3, 3, 0.21], [22125, 2, 3, 0.16], [10462, 3, 4, 0.39], [12419, 1, 4, 0.24], [8058, 1, 3, 0.4], [1728, 1, 3, 0.29], [11634, 1, 3, 0.17], [2193, 1, 6, 0.13], [6967, 3, 4, 0.8], [7566, 3, 5, 0.0], [19964, 25, 3, 0.3], [22029, 7, 14, 0.52], [2411, 80, 4, 0.22], [3560, 3, 3, 0.21], [22694, 3, 3, 0.23], [10944, 1, 3, 0.0], [1648, 1, 3, 0.47], [11270, 1, 10, 0.36], [2411, 29, 4, 0.22], [6359, 10, 8, 0.17], [688, 3, 3, 0.22], [8089, 1, 10, 0.46], [21687, 3, 5, 0.68], [6792, 1, 3, 0.22], [10105, 3, 3, 0.43], [11262, 7, 6, 0.0], [11413, 29, 3, 0.03], [6776, 7, 4, 0.0], [12227, 2, 3, 0.33], [22126, 2, 3, 0.16], [12430, 3, 4, 0.33], [6728, 1, 3, 0.24], [21320, 7, 10, 0.5], [11889, 2, 4, 0.7], [964, 15, 3, 0.33], [8905, 7, 8, 0.0], [6803, 3, 4, 0.32], [10459, 3, 4, 0.39], [13256, 25, 3, 0.23], [9182, 1, 3, 0.0], [11057, 3, 5, 0.97], [14013, 3, 4, 0.29], [29, 1, 3, 0.32], [5097, 2, 3, 0.24], [13325, 3, 3, 0.25], [10124, 1, 5, 0.16], [3599, 25, 3, 0.75], [3024, 3, 3, 0.35], [21487, 3, 3, 0.27], [23231, 3, 4, 0.21], [5849, 1, 5, 0.13], [8189, 10, 4, 0.2], [19336, 2, 3, 0.16], [2194, 1, 5, 0.13], [8059, 1, 4, 0.4], [4326, 1, 3, 0.22], [9122, 15, 3, 0.17], [2481, 16, 3, 0.25], [12634, 2, 3, 0.0], [20921, 3, 3, 0.26], [8502, 3, 3, 0.13], [19758, 2, 3, 0.17], [2364, 3, 3, 0.31], [5924, 1, 3, 0.17], [19364, 23, 3, 0.2], [1432, 25, 3, 0.08], [23992, 25, 4, 0.21], [6957, 2, 3, 0.41], [5208, 1, 3, 0.13], [7629, 1, 3, 0.32], [22914, 3, 4, 0.29], [1301, 3, 3, 0.52], [1620, 1, 3, 0.21], [1059, 1, 3, 0.0], [13392, 23, 6, 0.21], [10460, 3, 5, 0.39], [12449, 2, 4, 0.18], [11510, 1, 3, 0.0], [20790, 1, 4, 0.2], [3549, 29, 3, 0.37], [6778, 7, 10, 0.0], [3979, 3, 8, 0.42], [13198, 29, 3, 0.31], [6268, 23, 8, 0.18], [13853, 3, 3, 0.28], [8927, 1, 3, 0.14], [20961, 1, 3, 0.31], [19687, 1, 3, 0.34], [13033, 1, 3, 0.0], [12128, 1, 3, 0.15], [4940, 1, 6, 0.21], [9835, 2, 4, 0.23], [791, 2, 3, 0.15], [1053, 729, 3, 0.13], [12586, 3, 4, 0.38], [21773, 2, 3, 0.19], [12497, 1, 3, 0.26], [3585, 3, 3, 0.22], [20034, 2, 3, 0.22], [22920, 1, 3, 0.31], [11687, 1, 3, 0.1], [2492, 1, 3, 0.27], [11185, 23, 3, 1.28], [22920, 3, 4, 0.33], [3528, 25, 4, 0.18], [2481, 15, 3, 0.25], [10596, 3, 3, 0.27], [12614, 1, 3, 0.2], [5813, 1, 3, 0.37], [6319, 7, 8, 0.0], [1054, 10, 6, 0.16], [2168, 3, 3, 0.43], [6569, 1, 3, 0.0], [590, 1, 3, 0.13], [3902, 14, 4, 0.0], [3549, 25, 4, 0.37], [10461, 3, 5, 0.39], [5658, 3, 3, 0.18], [9088, 25, 4, 0.22], [11408, 7, 7, 0.36], [21478, 7, 5, 0.34], [23031, 3, 3, 0.29], [2308, 25, 3, 0.37], [1059, 3, 4, 0.21], [13462, 1, 6, 0.66], [12309, 2, 3, 0.28], [12330, 2, 3, 0.18], [1512, 3, 4, 0.14], [5446, 23, 3, 0.0], [11902, 2, 3, 0.2], [8106, 1, 4, 0.28], [2188, 1, 4, 0.21], [2942, 3, 4, 0.32], [20556, 2, 3, 0.23], [9997, 29, 3, 0.38], [6199, 7, 6, 0.0], [11322, 3, 5, 0.4], [114, 1, 3, 0.0], [9877, 15, 3, 0.27], [5718, 2, 3, 0.21], [24126, 3, 3, 0.23]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 32, 0.64], [8648, 2, 15, 0.42], [362, 2, 13, 0.28], [2327, 2, 18, 0.38], [141, 2, 12, 0.27], [2778, 2, 17, 0.37], [589, 2, 11, 0.0], [326, 2, 13, 0.08], [8650, 2, 12, 0.42], [305, 2, 9, 0.28], [130, 1, 6, 0.15], [2328, 2, 13, 0.38], [9760, 29, 7, 0.0], [2049, 3, 13, 0.12], [8853, 2, 19, 0.64], [2775, 2, 14, 0.37], [1446, 2, 5, 0.0], [205, 2, 6, 0.06], [143, 2, 10, 0.07], [8649, 2, 12, 0.42], [140, 2, 9, 0.08], [6936, 2, 19, 0.64], [2776, 2, 14, 0.37], [361, 2, 8, 0.27], [593, 2, 12, 0.24], [9507, 3, 3, 0.1], [1429, 2, 4, 0.0], [159, 3, 9, 0.13], [19925, 2, 7, 0.5], [5493, 2, 8, 0.29], [3840, 1, 6, 0.17], [206, 2, 4, 0.06], [145, 2, 5, 0.15], [523, 2, 6, 0.27], [413, 1, 5, 0.29], [997, 2, 5, 0.06], [151, 1, 6, 0.18], [2054, 3, 5, 0.0], [5491, 2, 5, 0.28], [998, 2, 5, 0.06], [8915, 2, 6, 0.0], [417, 2, 6, 0.27], [201, 3, 5, 0.26], [144, 2, 5, 0.24], [412, 1, 4, 0.27], [2050, 3, 5, 0.0], [11681, 2, 16, 0.54], [2055, 3, 5, 0.0], [146, 2, 4, 0.24], [7004, 1, 5, 0.15], [1656, 2, 4, 0.07], [12224, 1, 5, 0.1], [2057, 3, 5, 0.0], [10574, 3, 8, 0.26], [990, 2, 5, 0.05], [7036, 1, 7, 0.47], [11039, 2, 8, 0.5], [615, 2, 8, 0.28], [1124, 2, 6, 0.25], [583, 2, 4, 0.06], [5165, 1, 5, 0.2], [434, 2, 6, 0.24], [6097, 80, 4, 0.47], [20258, 2, 4, 0.27], [142, 2, 5, 0.27], [345, 3, 5, 0.26], [62, 3, 10, 0.32], [12225, 1, 3, 0.09], [11234, 2, 8, 0.23], [9372, 1, 8, 0.06], [248, 1, 3, 0.04], [6097, 29, 5, 0.47], [616, 2, 7, 0.28], [7885, 4, 3, 0.05], [7084, 3, 3, 0.33], [1654, 2, 4, 0.31], [6952, 1, 8, 0.41], [76, 2, 3, 0.25], [61, 3, 3, 0.25], [2912, 1, 5, 0.18], [346, 3, 4, 0.26], [11089, 1, 12, 0.29], [2424, 80, 5, 0.44], [7005, 1, 3, 0.29], [3891, 1, 3, 0.31], [11811, 1, 5, 0.32], [8938, 2, 5, 0.0], [21793, 1, 15, 0.62], [6098, 80, 3, 0.37], [10993, 2, 7, 0.25], [5208, 3, 8, 0.13], [11737, 2, 4, 0.23], [2424, 29, 6, 0.44], [3670, 2, 7, 0.52], [995, 2, 3, 0.24], [5165, 2, 9, 0.2], [11769, 1, 4, 0.0], [3576, 25, 5, 0.27], [1126, 2, 8, 0.19], [3893, 1, 4, 0.32], [5151, 2, 5, 0.22], [346, 1, 5, 0.25], [11770, 1, 13, 0.22], [418, 2, 3, 0.28], [11808, 1, 5, 0.26], [3889, 1, 3, 0.29], [972, 3, 5, 0.22], [20252, 2, 3, 0.47], [411, 2, 3, 0.33], [12870, 1, 5, 0.48], [159, 1, 6, 0.14], [1492, 1, 6, 0.37], [11426, 25, 5, 0.27], [20927, 1, 3, 0.29], [11739, 2, 5, 0.23], [1886, 2, 6, 1.2], [2912, 2, 8, 0.18], [11952, 1, 9, 0.54], [8943, 3, 3, 0.28], [2423, 80, 5, 0.38], [8089, 1, 6, 0.37], [3, 2, 6, 0.38], [11953, 1, 9, 0.5], [3334, 5, 8, 0.52], [11491, 2, 3, 0.28], [12269, 2, 5, 0.26], [416, 1, 3, 0.29], [3575, 25, 5, 0.29], [105, 3, 3, 0.01], [4032, 29, 5, 0.33], [996, 2, 3, 0.15], [11164, 1, 5, 0.47], [3577, 25, 4, 0.24], [957, 2, 3, 0.23], [6098, 29, 4, 0.37], [6158, 2, 5, 0.33], [955, 2, 8, 0.35], [2331, 1, 4, 0.5], [9784, 1, 3, 0.27], [11504, 2, 4, 0.28], [13962, 1, 5, 0.22], [11772, 1, 13, 0.66], [1413, 15, 3, 0.2], [410, 1, 3, 0.21], [10, 2, 9, 0.18], [13967, 1, 3, 0.2], [14037, 3, 5, 0.16], [20256, 2, 4, 0.32], [1490, 1, 4, 0.3], [432, 3, 4, 0.23], [12271, 2, 5, 0.26], [5005, 3, 11, 0.18], [13244, 1, 10, 0.22], [12369, 3, 11, 0.68], [8120, 3, 5, 0.31], [10149, 3, 21, 0.33], [214, 3, 14, 0.18], [22316, 3, 5, 0.29], [5076, 1, 5, 0.53], [13034, 3, 6, 0.4], [8286, 2, 5, 0.09], [6494, 1, 6, 0.38], [1163, 3, 5, 0.21], [11490, 1, 3, 0.33], [13028, 3, 5, 0.42], [5209, 3, 7, 0.13], [114, 3, 3, 0.01], [2423, 29, 5, 0.38], [4033, 29, 12, 0.23], [1519, 3, 15, 0.18], [12764, 2, 7, 0.28], [1007, 2, 7, 0.25], [8939, 2, 3, 0.0], [11767, 1, 3, 0.0], [8283, 2, 5, 0.1], [624, 2, 4, 0.29], [75, 2, 4, 0.31], [21798, 1, 3, 0.23], [11671, 1, 6, 0.26], [414, 1, 3, 0.29], [9491, 21, 10, 0.22], [2160, 68, 3, 0.3], [440, 3, 3, 1.69], [5584, 3, 3, 0.67], [229, 1, 3, 0.44], [335, 3, 13, 0.22], [11150, 2, 7, 0.19], [289, 3, 3, 0.32], [12356, 3, 4, 0.59], [3576, 29, 3, 0.28], [5005, 1, 7, 0.19], [11425, 25, 3, 0.26], [1703, 2, 6, 0.42], [66, 16, 3, 0.16], [161, 3, 6, 0.34], [8945, 3, 4, 0.71], [11738, 2, 3, 0.23], [2805, 137, 7, 0.53], [11404, 2, 8, 0.0], [7886, 4, 3, 0.16], [950, 1, 5, 0.16], [11771, 1, 6, 0.0], [159, 16, 3, 0.13], [8274, 3, 4, 0.19], [6497, 1, 5, 0.37], [11160, 1, 5, 0.68], [9998, 80, 3, 0.48], [4232, 80, 5, 0.41], [10407, 10, 9, 1.02], [10517, 29, 7, 0.36], [1701, 2, 4, 1.22], [2497, 2, 4, 0.54], [11586, 1, 8, 0.4], [20555, 2, 3, 0.24], [12362, 3, 5, 0.61], [11813, 1, 3, 0.42], [1699, 3, 3, 0.25], [66, 15, 3, 0.16], [2422, 80, 4, 0.44], [415, 1, 3, 0.29], [12496, 3, 4, 0.21], [13964, 1, 4, 0.21], [12357, 3, 4, 0.65], [288, 3, 4, 0.32], [11180, 1, 3, 0.28], [13968, 1, 3, 0.2], [11674, 1, 3, 0.0], [66, 1, 4, 0.16], [22317, 3, 5, 0.26], [9910, 25, 3, 0.18], [8285, 2, 4, 0.12], [11814, 1, 3, 0.21], [12979, 25, 11, 0.29], [12358, 3, 4, 0.64], [3429, 15, 3, 0.19], [11158, 1, 8, 0.69], [14041, 3, 4, 0.16], [9065, 2, 4, 0.12], [336, 15, 3, 0.19], [8944, 3, 3, 0.18], [2438, 2, 7, 0.22], [12361, 3, 4, 0.65], [1667, 3, 3, 0.25], [8926, 1, 4, 0.37], [11581, 29, 7, 0.24], [12497, 3, 4, 0.21], [10408, 10, 7, 0.27], [12304, 1, 6, 0.65], [12270, 2, 3, 0.27], [8635, 3, 3, 0.19], [21686, 3, 6, 0.68], [11159, 1, 10, 0.67], [389, 4, 3, 0.36], [12360, 3, 4, 0.63], [2109, 3, 11, 0.22], [3478, 2, 5, 0.43], [11236, 2, 6, 1.04], [1661, 3, 3, 0.25], [11179, 1, 4, 0.29], [71, 15, 3, 0.19], [1801, 1, 3, 0.4], [10514, 3, 4, 0.15], [2528, 29, 3, 0.21], [956, 2, 3, 0.23], [22236, 1, 7, 0.22], [11689, 2, 4, 0.1], [9069, 1, 3, 0.32], [1309, 1, 3, 0.35], [12223, 1, 4, 0.24], [13264, 29, 3, 0.26], [11687, 2, 4, 0.1], [6224, 1, 132, 0.0], [9690, 1, 3, 0.41], [1523, 1, 3, 0.46], [2421, 80, 4, 0.16], [12338, 29, 3, 0.2], [11683, 2, 10, 0.81], [7887, 4, 3, 0.19], [11812, 1, 3, 0.2], [1700, 2, 6, 0.43], [1243, 2, 5, 0.33], [12355, 3, 4, 0.61], [10609, 1, 15, 0.52], [3442, 29, 4, 0.33], [21697, 3, 3, 0.28], [584, 2, 3, 0.29], [10720, 80, 5, 0.2], [3337, 1, 3, 0.33], [11585, 29, 3, 0.37], [4253, 1, 3, 0.33], [74, 1, 3, 0.79], [147, 1, 3, 0.38], [126, 2, 3, 0.26], [10411, 10, 7, 0.28], [13033, 3, 5, 0.4], [11954, 1, 4, 0.13], [12964, 3, 3, 0.0], [10406, 10, 9, 0.33], [6496, 1, 4, 0.4], [1339, 3, 11, 0.18], [11690, 2, 4, 0.11], [972, 1, 3, 0.22], [11150, 1, 3, 0.19], [13251, 29, 4, 0.18], [947, 15, 3, 0.26], [7567, 3, 5, 0.73], [823, 1, 3, 0.4], [439, 1, 3, 0.35], [6872, 25, 3, 0.22], [9126, 1, 6, 0.31], [9910, 29, 3, 0.18], [3577, 29, 3, 0.24], [4940, 1, 6, 0.23], [9186, 29, 3, 0.2], [3575, 29, 3, 0.29], [9507, 1, 5, 0.1], [12373, 1, 7, 0.39], [12363, 3, 4, 0.64], [2109, 1, 4, 0.22], [10410, 10, 8, 1.02], [152, 21, 3, 0.21], [13023, 3, 6, 0.35], [9049, 2, 4, 0.29], [13243, 1, 3, 0.22], [8659, 1, 4, 0.4], [21687, 3, 5, 0.68], [13498, 3, 4, 0.49], [590, 15, 3, 0.19], [4372, 10, 10, 0.32], [4327, 1, 3, 0.34], [11726, 29, 5, 0.2], [11489, 1, 3, 0.33], [9122, 15, 4, 0.22], [21806, 1, 3, 0.0], [9288, 29, 3, 0.4], [307, 2, 3, 0.28], [566, 2, 5, 0.26], [11426, 29, 3, 0.27], [11719, 3, 6, 1.11], [10815, 3, 5, 1.11], [11467, 1, 3, 0.41], [13108, 3, 6, 1.11], [3896, 25, 3, 0.32], [10409, 10, 8, 0.32], [5585, 3, 3, 0.65], [5007, 3, 6, 0.22], [12647, 1, 5, 0.4], [19931, 1, 6, 0.21], [2104, 3, 10, 0.18], [12059, 3, 7, 0.31], [1274, 1, 3, 0.4], [13247, 29, 4, 0.0], [11942, 29, 4, 0.4], [21060, 1, 4, 0.34], [6561, 1, 17, 0.0], [13110, 3, 4, 0.68], [6540, 25, 3, 0.36], [23238, 25, 3, 0.18], [3892, 1, 3, 0.28], [12368, 3, 4, 0.66], [2878, 1, 3, 0.56], [435, 2, 3, 0.23], [2422, 29, 3, 0.43], [4586, 10, 17, 0.13], [110, 4, 3, 0.44], [20556, 2, 3, 0.27], [973, 3, 4, 0.31], [12010, 3, 3, 0.59], [8898, 3, 5, 0.7], [5940, 3, 3, 0.16], [19932, 1, 5, 0.22], [9081, 3, 10, 0.33], [399, 24, 3, 0.24], [10398, 2, 3, 0.28], [19971, 3, 4, 0.29], [3495, 3, 16, 0.28], [4030, 25, 3, 0.23], [13246, 29, 3, 0.56], [11611, 2, 3, 0.28], [11235, 2, 4, 0.23], [13036, 3, 6, 0.49], [8234, 1, 3, 0.35], [1059, 3, 4, 0.53], [21809, 1, 3, 0.0], [1406, 25, 3, 0.24], [13244, 2, 7, 0.22], [6569, 7, 28, 0.0], [6805, 1, 4, 0.28], [10897, 1, 12, 0.43], [9971, 2, 3, 0.37], [1432, 25, 3, 0.07], [11087, 2, 4, 0.26], [2100, 25, 3, 0.25], [11625, 29, 3, 0.2], [9124, 1, 3, 0.31], [991, 2, 4, 0.16], [490, 1, 6, 0.21], [7702, 2, 5, 0.34], [9998, 29, 5, 0.48], [7324, 1, 3, 0.2], [12526, 2, 4, 0.2], [2049, 1, 5, 0.12], [3894, 1, 3, 0.35], [8677, 3, 4, 0.52], [9289, 29, 5, 0.39], [21700, 3, 3, 0.53], [2368, 3, 5, 0.14], [10719, 80, 5, 0.24], [202, 2, 3, 0.2], [149, 2, 3, 0.38], [9786, 1, 3, 0.27], [11084, 2, 4, 0.26], [524, 1, 3, 0.27], [21699, 3, 6, 0.29], [13893, 2, 3, 0.27], [13243, 2, 7, 0.22], [1895, 3, 4, 0.3], [8284, 2, 4, 0.13], [10407, 1, 3, 0.0], [6394, 7, 27, 0.0], [378, 2, 6, 0.41], [1413, 16, 3, 0.2], [8600, 1, 3, 0.3], [3016, 68, 3, 0.48], [10406, 1, 3, 0.31], [12979, 1, 3, 0.29], [3278, 29, 3, 0.27], [11887, 2, 4, 0.16], [11885, 2, 4, 0.16], [11960, 3, 4, 0.1], [9785, 1, 3, 0.27], [12229, 2, 3, 0.41], [10721, 80, 6, 0.16], [21059, 1, 5, 0.34], [23238, 29, 4, 0.18], [13258, 29, 14, 0.36], [11710, 3, 5, 0.18], [21703, 3, 3, 0.52], [2539, 29, 5, 0.22], [9967, 2, 3, 0.37], [3610, 24, 3, 0.54], [10093, 3, 13, 0.44], [11427, 2, 4, 0.41], [11603, 2, 3, 0.51], [13259, 29, 13, 0.0], [12764, 1, 3, 0.27], [18964, 1, 3, 0.79], [2695, 3, 5, 0.23], [5453, 1, 3, 0.29], [12873, 1, 5, 0.29], [9854, 1, 3, 0.44], [9209, 29, 7, 0.31], [1548, 1, 4, 0.3], [11643, 1, 3, 0.27], [12241, 3, 4, 0.14], [8896, 1, 3, 0.52], [1515, 1, 3, 0.16], [9239, 29, 7, 0.21], [11967, 1, 3, 0.15], [2369, 3, 5, 0.23], [8599, 1, 3, 0.34], [21691, 3, 5, 0.58], [9122, 1, 3, 0.22], [12646, 1, 4, 0.41], [9082, 3, 22, 0.48], [1744, 1, 3, 0.32], [21701, 3, 3, 0.52], [470, 1, 3, 0.08], [11085, 2, 4, 0.26], [11183, 1, 3, 0.55], [11559, 29, 3, 0.26], [5939, 3, 3, 0.17], [406, 3, 7, 0.55], [3599, 25, 3, 0.73], [21783, 2, 3, 0.16], [12234, 3, 3, 0.41], [21694, 3, 5, 0.58], [22318, 3, 4, 0.29], [1301, 3, 3, 0.37], [1277, 1, 5, 0.2], [9494, 1, 4, 0.19], [1407, 25, 3, 0.11], [9125, 1, 5, 0.31], [11425, 29, 3, 0.26], [8355, 1, 3, 0.17], [5658, 68, 3, 0.21], [8155, 25, 3, 0.3], [12295, 4, 3, 0.28], [13259, 25, 3, 0.41], [20969, 3, 6, 0.46], [9, 1, 3, 0.14], [9965, 2, 3, 0.37], [11930, 1, 3, 0.58], [21713, 3, 11, 0.18], [345, 1, 5, 0.0], [13928, 1, 4, 0.38], [21810, 1, 3, 0.0], [7558, 3, 3, 0.21], [9841, 25, 9, 0.2], [4326, 1, 3, 0.35], [11583, 29, 3, 0.19], [10936, 2, 3, 0.0], [6864, 1, 4, 0.27], [3456, 3, 3, 0.21], [3900, 3, 3, 0.19], [7707, 2, 4, 0.34], [11090, 1, 3, 0.15], [19982, 2, 3, 0.14], [12367, 3, 4, 0.65], [1668, 1, 3, 0.3], [8106, 10, 3, 0.27], [19924, 2, 4, 0.12], [12871, 1, 3, 0.41], [21781, 2, 3, 0.17], [2196, 25, 3, 0.12], [12449, 2, 5, 0.22], [9085, 25, 6, 0.32], [9840, 25, 8, 0.2], [9964, 2, 3, 0.37], [10414, 10, 5, 0.2], [8897, 3, 4, 0.69], [2438, 1, 4, 0.22], [922, 1, 3, 0.14], [4043, 29, 4, 0.21], [7708, 2, 5, 0.34], [13266, 29, 3, 0.3], [10409, 1, 3, 0.3], [4030, 29, 3, 0.23], [3673, 2, 4, 0.53], [21712, 3, 14, 0.25], [19964, 25, 3, 0.26], [958, 2, 3, 0.25], [6540, 29, 3, 0.36], [12058, 3, 4, 0.31], [3664, 5, 7, 0.43], [6872, 29, 3, 0.22], [8754, 2, 7, 0.2], [9113, 15, 4, 0.18], [8943, 1, 3, 0.28], [10939, 2, 3, 0.0], [13272, 29, 7, 0.26], [21689, 3, 4, 0.58], [10413, 10, 5, 0.6], [10716, 3, 4, 0.17], [3599, 29, 3, 0.0], [2322, 2, 3, 0.33], [10410, 1, 3, 0.0], [11717, 3, 3, 0.79], [20259, 2, 3, 0.26], [4354, 1, 3, 0.41], [11413, 29, 3, 0.01], [10822, 7, 7, 0.58], [13025, 3, 4, 0.49], [11450, 2, 4, 0.38], [11116, 1, 3, 0.15], [9204, 3, 3, 0.47], [975, 3, 4, 0.19], [13323, 3, 4, 0.21], [1300, 3, 6, 0.14], [11721, 3, 5, 1.11], [11844, 2, 3, 0.21], [3028, 3, 3, 0.15], [10408, 1, 3, 0.26], [9787, 1, 3, 0.28], [11618, 1, 3, 0.28], [4372, 1, 3, 0.34], [19983, 2, 3, 0.19], [436, 2, 3, 0.21], [11677, 1, 3, 0.31], [220, 4, 3, 0.55], [19972, 3, 4, 0.29], [3934, 5, 5, 0.38], [13198, 29, 3, 0.31], [13928, 2, 4, 0.38], [308, 1, 3, 0.37], [10717, 3, 5, 0.18], [12296, 4, 3, 0.21], [21316, 3, 3, 0.17], [247, 1, 3, 0.34], [1339, 1, 3, 0.18], [21807, 1, 3, 0.0], [9209, 25, 4, 0.31], [4232, 29, 4, 0.41], [11212, 4, 3, 1.11], [7704, 2, 3, 0.34], [23239, 25, 3, 0.16], [21704, 3, 10, 0.19], [21317, 3, 3, 0.17], [9827, 3, 3, 0.2], [10412, 10, 5, 0.2], [10537, 3, 4, 0.18], [5976, 1, 4, 0.18], [8283, 1, 3, 0.0], [7457, 3, 5, 0.21], [2421, 29, 3, 0.16], [11485, 24, 3, 0.64], [8054, 1, 3, 0.19], [70, 16, 3, 0.16], [21463, 7, 4, 0.29], [201, 1, 3, 0.0], [3723, 25, 3, 0.44], [13274, 29, 3, 0.31], [21808, 1, 3, 0.0], [6575, 3, 3, 0.52], [10536, 3, 4, 0.0], [12653, 1, 5, 0.2], [22570, 1, 4, 0.35], [11633, 1, 3, 0.17], [13024, 3, 4, 0.48], [11435, 2, 3, 0.32], [8756, 2, 5, 0.27], [9239, 25, 3, 0.21], [471, 1, 3, 0.17], [6218, 1, 8, 0.0], [5188, 1, 3, 0.34], [9149, 23, 4, 0.17], [20255, 2, 3, 0.38], [11794, 2, 3, 0.62], [10411, 1, 3, 0.27], [10150, 3, 7, 0.15], [11868, 3, 3, 0.25], [2105, 3, 8, 0.17], [45, 2, 4, 0.69], [5153, 2, 3, 0.0], [2419, 80, 4, 0.23], [1648, 1, 4, 0.46], [21474, 7, 3, 0.3], [9691, 1, 3, 0.41], [71, 16, 3, 0.19], [9113, 1, 4, 0.18], [1575, 1, 3, 0.34], [12517, 2, 3, 0.38], [4043, 25, 4, 0.21], [10176, 29, 3, 0.36], [11644, 1, 3, 0.27], [10455, 29, 3, 0.01], [1706, 25, 3, 0.38], [6209, 1, 21, 0.0], [2108, 1, 3, 0.18], [4178, 68, 3, 0.21], [14017, 3, 3, 0.15], [109, 4, 3, 0.33], [12463, 1, 5, 0.21], [560, 1, 3, 0.52], [13105, 3, 4, 0.95], [9778, 1, 3, 0.29], [21789, 2, 3, 0.18], [1853, 1, 3, 0.24], [1743, 1, 3, 0.32], [23380, 25, 3, 0.18], [23237, 25, 3, 0.18], [8753, 2, 5, 0.27], [1059, 1, 5, 0.0], [21476, 7, 3, 0.3], [11559, 80, 3, 0.26], [3609, 24, 4, 0.25], [12448, 2, 4, 0.23], [11718, 3, 3, 0.78], [19582, 3, 3, 0.13], [4076, 3, 3, 0.52], [11402, 1, 4, 0.33], [13249, 29, 5, 0.39], [11678, 1, 4, 0.58], [3143, 3, 3, 0.44], [10461, 3, 4, 0.39], [19687, 1, 3, 0.34], [88, 10, 13, 0.32], [12365, 3, 5, 0.51], [1431, 3, 7, 0.24], [8106, 1, 5, 0.28], [21692, 3, 4, 0.76], [10721, 29, 5, 0.16], [6222, 1, 10, 0.0], [11846, 3, 4, 0.25], [332, 2, 3, 0.2], [10254, 1, 3, 0.46], [2492, 1, 3, 0.27], [21683, 3, 3, 0.13], [10459, 3, 4, 0.39], [3230, 1, 3, 0.23], [10940, 2, 3, 0.0], [2108, 3, 6, 0.18], [10941, 2, 3, 0.0], [12463, 15, 4, 0.21], [8672, 2, 8, 0.45], [1706, 2, 3, 0.38], [13258, 25, 3, 0.36], [8286, 1, 3, 0.0], [6728, 1, 3, 0.24], [1024, 1, 3, 0.18], [10825, 21, 10, 0.31], [9085, 29, 4, 0.32], [19047, 3, 3, 0.42], [12538, 3, 9, 0.14], [9342, 2, 5, 0.7], [11886, 2, 3, 0.2], [10531, 14, 8, 0.25], [13104, 3, 4, 0.96], [7705, 2, 4, 0.34], [10994, 2, 5, 0.26], [11412, 29, 3, 0.01], [13257, 29, 6, 0.35], [10460, 3, 4, 0.39], [11962, 1, 3, 0.29], [11768, 1, 3, 0.0], [1005, 2, 3, 0.17], [5128, 1, 3, 0.24], [9613, 1, 3, 0.13], [6799, 1, 13, 0.0], [4175, 3, 8, 0.43], [2859, 15, 3, 0.3], [19883, 1, 3, 0.15], [9207, 29, 3, 0.2], [11081, 3, 3, 0.17], [19965, 25, 3, 0.18], [5343, 15, 3, 0.26], [2738, 3, 3, 0.31], [11867, 3, 3, 0.32], [12637, 1, 4, 0.24], [344, 25, 3, 0.28], [5666, 2, 3, 0.37], [13966, 1, 3, 0.2], [8923, 25, 5, 0.17], [7084, 1, 3, 0.0], [5152, 2, 3, 0.41], [7703, 2, 3, 0.34], [2879, 1, 3, 0.19], [2103, 15, 3, 0.2], [12294, 4, 3, 0.84], [21091, 7, 3, 0.18], [6396, 7, 6, 0.0], [12369, 1, 4, 0.0], [22871, 7, 3, 0.28], [2991, 3, 4, 0.42], [9997, 80, 3, 0.38], [12040, 68, 3, 0.15], [3722, 25, 3, 0.19], [13267, 29, 4, 0.2], [4001, 3, 10, 0.42], [12912, 3, 4, 0.18], [22573, 2, 5, 0.3], [394, 10, 10, 0.15], [13260, 29, 3, 0.31], [2100, 2, 3, 0.25], [12924, 1, 3, 0.15], [10720, 29, 4, 0.2], [2287, 25, 3, 0.36], [11562, 29, 4, 0.3], [512, 24, 3, 0.97], [9996, 80, 3, 0.46], [3021, 68, 3, 0.21], [10937, 2, 3, 0.0], [3896, 29, 3, 0.33], [5341, 15, 3, 0.28], [6560, 3, 19, 0.0], [9138, 2, 3, 0.33], [9945, 3, 4, 0.17], [9380, 1, 4, 0.54], [13106, 3, 4, 0.95], [1683, 1, 3, 0.25], [21693, 3, 4, 1.11], [19685, 1, 5, 0.0], [161, 1, 5, 0.34], [8688, 14, 6, 0.3], [10581, 3, 4, 0.6], [974, 3, 4, 0.38], [23339, 3, 3, 0.18], [354, 2, 3, 0.21], [3429, 16, 3, 0.19], [11895, 1, 9, 0.14], [11961, 1, 6, 0.23], [4329, 3, 4, 0.17], [3059, 3, 3, 0.52], [9208, 29, 4, 0.32], [21690, 3, 4, 0.52], [9374, 5, 4, 0.53], [13488, 1, 4, 0.28], [3088, 1, 3, 0.15], [107, 7, 5, 0.37], [3104, 1, 4, 0.44], [11306, 2, 3, 0.84], [22407, 1, 3, 0.18], [5851, 1, 3, 0.17], [10181, 26, 7, 0.0], [13491, 7, 3, 0.45], [10507, 2, 3, 0.22], [12654, 1, 3, 0.45], [11213, 4, 3, 1.11], [407, 3, 4, 0.55], [11960, 1, 6, 0.1], [12516, 2, 3, 0.38], [6803, 3, 4, 0.21], [21481, 7, 3, 0.48], [3338, 1, 3, 0.23], [7457, 1, 3, 0.21], [9138, 23, 6, 0.35], [1185, 3, 3, 0.47], [8636, 3, 5, 0.64], [2188, 2, 8, 0.21], [12057, 2, 3, 0.38], [10083, 23, 8, 0.33], [5343, 16, 3, 0.27], [22571, 1, 3, 0.0], [11619, 1, 3, 0.28], [9783, 1, 3, 0.26], [10616, 1, 3, 0.24], [12613, 1, 3, 0.28], [409, 1, 3, 0.17], [9373, 5, 4, 0.44], [21706, 3, 13, 0.16], [3389, 1, 4, 0.49], [1095, 2, 4, 0.39], [79, 1, 3, 0.33], [22874, 3, 3, 0.28], [1120, 3, 9, 0.18], [20956, 7, 6, 0.31], [9150, 23, 5, 0.19], [9208, 25, 4, 0.32], [11896, 2, 3, 0.17], [19966, 25, 3, 0.18], [2308, 25, 3, 0.38], [2436, 4, 4, 0.53], [1432, 2, 3, 0.0], [20649, 1, 4, 0.34], [23276, 3, 3, 0.39], [1299, 3, 6, 0.24], [7706, 2, 3, 0.34], [8356, 1, 4, 0.17], [12980, 25, 7, 0.21], [19968, 25, 3, 0.13], [12875, 1, 5, 0.24], [1414, 15, 3, 0.2], [1139, 3, 4, 0.15], [11410, 29, 3, 0.2], [13253, 29, 3, 0.21], [11856, 1, 3, 0.29], [334, 25, 3, 0.31], [8188, 10, 7, 0.2], [6560, 1, 13, 0.0], [22708, 1, 3, 0.48], [13107, 3, 5, 0.96], [10462, 3, 4, 0.39], [2196, 2, 3, 0.0], [21319, 7, 9, 0.31], [2935, 1, 5, 0.2], [8051, 2, 3, 0.21], [2188, 1, 6, 0.2], [590, 16, 3, 0.19], [8945, 1, 3, 0.0], [12054, 2, 4, 0.38], [4328, 1, 3, 0.33], [944, 15, 3, 0.18], [3047, 3, 3, 0.55], [1413, 1, 3, 0.2], [9788, 1, 3, 0.27], [5340, 23, 5, 0.2], [12366, 3, 4, 0.75], [8033, 2, 3, 0.18], [3462, 2, 3, 0.31], [405, 3, 4, 0.55], [4966, 2, 3, 0.14], [2419, 29, 4, 0.23], [11054, 3, 5, 0.94], [1705, 25, 3, 0.21], [21705, 3, 6, 0.37], [22125, 2, 3, 0.16], [8023, 1, 3, 0.26], [3910, 7, 8, 0.34], [8681, 3, 3, 0.18], [21468, 7, 4, 0.28], [11178, 1, 5, 0.27], [4222, 4, 3, 0.25], [22321, 1, 3, 0.17], [10816, 3, 4, 0.89], [13252, 29, 6, 0.22], [11899, 2, 3, 0.25], [432, 1, 3, 0.24], [2362, 25, 3, 0.19], [1409, 15, 3, 0.18], [2217, 1, 3, 0.48], [3258, 7, 6, 0.34], [22408, 1, 3, 0.2], [1406, 2, 3, 0.23], [11641, 1, 3, 0.27], [8683, 3, 3, 0.19], [11936, 2, 3, 0.0], [12536, 2, 3, 0.17], [9148, 23, 4, 0.17], [8557, 3, 3, 0.05], [4651, 2, 4, 0.21], [11527, 10, 5, 0.58], [2099, 2, 3, 0.44], [9182, 1, 3, 0.39], [9253, 3, 3, 0.32], [107, 2, 4, 0.37], [10396, 3, 3, 0.2], [6802, 3, 3, 0.21], [2916, 1, 3, 0.28], [12993, 3, 10, 0.29], [9358, 1, 4, 0.35], [8157, 80, 4, 0.32], [12930, 2, 3, 0.16], [19686, 1, 3, 0.17], [11722, 3, 3, 0.99], [8944, 1, 3, 0.19], [2323, 2, 3, 0.33], [10124, 1, 4, 0.16], [8637, 3, 5, 0.69], [8167, 7, 4, 0.4], [14018, 3, 3, 0.14], [10719, 29, 3, 0.24], [2335, 3, 3, 0.25], [9841, 1, 3, 0.22], [8510, 7, 8, 0.0], [11562, 80, 3, 0.3], [5812, 3, 4, 0.2], [1407, 2, 3, 0.0], [12791, 2, 5, 0.21], [1742, 1, 3, 0.33], [23235, 25, 3, 0.26], [19882, 1, 3, 0.15], [1514, 1, 3, 0.15], [2999, 1, 3, 0.46], [11156, 11, 6, 0.16], [3909, 7, 8, 0.33], [8285, 1, 3, 0.0], [11889, 2, 4, 0.7], [12473, 15, 3, 0.17], [11327, 3, 5, 0.39], [2362, 29, 3, 0.0], [23489, 3, 4, 0.38], [11092, 1, 3, 0.15], [19878, 1, 3, 0.15], [12992, 3, 8, 0.29], [21088, 7, 4, 0.14], [6561, 3, 5, 0.0], [3049, 3, 3, 0.5], [19965, 29, 3, 0.18], [10640, 3, 5, 0.16], [9087, 25, 3, 0.4], [12662, 1, 4, 0.0], [12614, 1, 3, 0.27], [10174, 1, 3, 0.27], [3386, 1, 3, 0.52], [408, 3, 4, 0.55], [22877, 7, 3, 0.29], [10278, 3, 4, 0.43], [11901, 2, 3, 0.24], [8923, 29, 4, 0.17], [5543, 1, 3, 0.16], [11152, 11, 6, 0.18], [1880, 4, 3, 0.96], [5342, 23, 4, 0.19], [9207, 25, 3, 0.2], [12923, 1, 4, 0.15], [5452, 1, 3, 0.0], [6570, 7, 5, 0.0], [22706, 1, 3, 0.47], [3391, 1, 3, 0.43], [20650, 1, 3, 0.36], [440, 1, 3, 0.0], [12239, 3, 3, 0.13], [12379, 1, 3, 0.58], [9149, 2, 3, 0.17], [13041, 3, 4, 0.17], [11093, 1, 3, 0.15], [11080, 3, 3, 0.77], [5007, 1, 3, 0.23], [23493, 3, 3, 0.13], [11855, 1, 3, 0.29], [1705, 2, 3, 0.21], [382, 1, 4, 0.5], [9375, 1, 3, 0.34], [23494, 3, 3, 0.13], [11931, 1, 3, 0.58], [12030, 2, 3, 0.46], [12586, 3, 4, 0.29], [14, 1, 3, 0.26], [3976, 3, 6, 0.43], [11968, 1, 3, 0.13], [2495, 2, 3, 0.22], [10272, 3, 4, 0.29], [22879, 3, 3, 0.28], [1691, 1, 3, 0.36], [12235, 3, 3, 0.41], [1620, 1, 3, 0.21], [563, 2, 3, 0.22], [11328, 3, 4, 0.39], [12508, 1, 3, 0.22], [10273, 3, 4, 0.29], [12648, 1, 4, 0.38], [21459, 7, 8, 0.5], [9154, 23, 4, 0.18], [23039, 10, 7, 1.02], [21710, 3, 25, 0.27], [3430, 15, 3, 0.16], [70, 1, 3, 0.15], [11711, 3, 3, 0.47], [12262, 3, 4, 0.1], [8651, 2, 4, 0.4], [3598, 15, 3, 0.19], [12031, 2, 3, 0.46], [13273, 29, 3, 0.3], [11289, 2, 3, 1.15], [11528, 10, 5, 0.58], [3987, 3, 4, 0.45], [8682, 3, 3, 0.18], [8191, 10, 6, 0.19], [448, 1, 3, 0.22], [9355, 1, 3, 0.27], [5343, 1, 4, 0.27], [20965, 3, 4, 0.58], [216, 4, 3, 0.29], [10147, 1, 3, 0.42], [23234, 25, 4, 0.21], [23275, 2, 4, 0.3], [20188, 3, 3, 0.41], [10048, 1, 3, 0.17], [12053, 2, 6, 0.38], [11858, 1, 3, 0.29], [19581, 3, 3, 0.13], [12426, 3, 4, 0.25], [215, 4, 3, 0.5], [5946, 1, 3, 0.34], [19964, 29, 3, 0.26], [3658, 1, 3, 0.31], [5540, 1, 3, 0.17], [9382, 1, 4, 0.18], [3390, 1, 3, 0.49], [10114, 1, 25, 0.0], [20316, 3, 3, 0.62], [8280, 2, 4, 0.7], [105, 1, 3, 0.0], [6023, 1, 3, 0.0], [4967, 23, 8, 0.18], [23040, 10, 5, 0.88], [6224, 7, 8, 0.0], [12656, 1, 3, 0.45], [506, 1, 3, 0.38], [8085, 1, 3, 0.17], [12238, 3, 4, 0.65], [21686, 1, 4, 0.0], [6525, 7, 10, 0.0], [3341, 3, 3, 0.46], [12237, 3, 4, 0.66], [12980, 1, 3, 0.22], [12029, 2, 3, 0.46], [18, 1, 3, 0.22], [1602, 68, 3, 0.59], [21752, 2, 3, 0.0], [7629, 1, 3, 0.32], [1511, 3, 5, 0.16], [22038, 7, 5, 0.31], [22037, 7, 6, 0.31], [21745, 2, 3, 0.0], [11793, 2, 4, 0.44], [10114, 3, 8, 0.0], [8050, 2, 3, 0.19], [2103, 16, 3, 0.2], [9381, 1, 8, 0.18], [515, 24, 3, 0.44], [5408, 2, 3, 0.2], [11735, 3, 3, 0.28], [11635, 1, 3, 0.15], [6220, 1, 11, 0.0], [10149, 1, 3, 0.32], [13268, 29, 3, 0.34], [5542, 1, 3, 0.16], [19583, 3, 4, 0.13], [24130, 1, 4, 0.17], [23545, 3, 4, 0.22], [9781, 1, 3, 0.29], [11304, 2, 3, 1.15], [392, 4, 3, 0.36], [12917, 3, 3, 0.16], [9153, 23, 4, 0.19], [21461, 7, 7, 0.5], [3392, 1, 3, 0.43], [13037, 3, 3, 0.49], [12630, 10, 4, 0.19], [14040, 3, 3, 0.15], [10529, 29, 4, 0.41], [3913, 1, 11, 0.47], [19969, 25, 3, 0.28], [10467, 29, 4, 0.42], [11057, 3, 4, 0.91], [12587, 3, 3, 0.29], [21480, 7, 4, 0.5], [20939, 3, 3, 0.38], [10580, 3, 4, 0.86], [11288, 2, 3, 1.15], [19880, 1, 3, 0.15], [13324, 3, 4, 0.16], [5490, 2, 3, 0.26], [6395, 7, 10, 0.0], [20964, 3, 4, 0.53], [8904, 7, 10, 0.0], [380, 2, 3, 0.0], [12501, 1, 3, 0.0], [13295, 3, 3, 0.29], [2728, 3, 3, 0.33], [9840, 1, 3, 0.22], [12504, 1, 3, 0.0], [8684, 3, 3, 0.19], [3016, 3, 4, 0.48], [4586, 1, 3, 0.16], [9777, 1, 3, 0.26], [5341, 16, 3, 0.28], [20190, 3, 3, 0.42], [6565, 1, 57, 0.0], [6342, 3, 4, 0.0], [5577, 3, 3, 0.66], [3450, 1, 3, 0.34], [21487, 3, 3, 0.24], [2934, 1, 3, 0.2], [94, 4, 3, 0.41], [12674, 1, 3, 0.34], [23028, 3, 3, 0.31], [13257, 25, 3, 0.35], [13035, 3, 4, 0.29], [9150, 2, 3, 0.19], [9485, 2, 3, 0.16], [3979, 3, 3, 0.42], [7182, 1, 3, 0.19], [5411, 2, 3, 0.2], [11325, 3, 4, 0.39], [9997, 29, 4, 0.38], [1601, 68, 3, 0.61], [9153, 2, 3, 0.19], [12418, 3, 4, 0.33], [951, 4, 3, 0.24], [11902, 2, 5, 0.24], [11687, 1, 3, 0.1], [10528, 3, 8, 0.16], [5368, 3, 3, 0.39], [333, 25, 3, 0.3], [2336, 3, 8, 0.29], [23032, 3, 4, 0.3], [12236, 3, 4, 0.15], [1120, 1, 4, 0.19], [5110, 1, 4, 0.34], [11185, 23, 3, 0.21], [10048, 15, 4, 0.18], [12594, 7, 3, 0.14], [11558, 80, 3, 0.3], [12218, 3, 7, 0.26], [13300, 3, 4, 0.46], [8156, 25, 3, 0.3], [22323, 1, 4, 0.16], [9083, 3, 3, 0.31], [10384, 3, 4, 0.14], [11642, 1, 3, 0.27], [11900, 2, 3, 0.31], [5848, 1, 3, 0.19], [13485, 1, 3, 0.28], [11056, 3, 4, 0.93], [2104, 1, 3, 0.18], [6209, 7, 4, 0.0], [11021, 3, 5, 0.4], [20314, 3, 3, 0.62], [2193, 1, 17, 0.14], [214, 1, 3, 0.19], [9828, 3, 3, 0.2], [11290, 2, 3, 1.15], [12588, 3, 3, 0.29], [62, 1, 3, 0.33], [13113, 1, 4, 0.23], [12535, 2, 3, 0.17], [23237, 29, 3, 0.18], [2854, 21, 6, 0.23], [10574, 1, 4, 0.26], [23490, 3, 3, 0.38], [10483, 1, 18, 0.0], [12032, 2, 3, 0.46], [9608, 1, 3, 0.13], [4063, 3, 7, 0.18], [3421, 3, 14, 0.15], [385, 1, 3, 0.54], [3986, 4, 3, 0.35], [12260, 3, 3, 0.43], [4927, 12, 3, 0.22], [7724, 3, 3, 0.22], [13293, 3, 3, 0.29], [23492, 3, 3, 0.13], [9378, 1, 3, 0.39], [13965, 1, 5, 0.2], [21482, 7, 4, 0.48], [11048, 1, 3, 0.13], [12791, 1, 5, 0.22], [9487, 2, 3, 0.16], [148, 1, 3, 0.38], [5658, 3, 3, 0.21], [8754, 1, 3, 0.2], [20315, 3, 3, 0.62], [22126, 2, 3, 0.16], [13489, 1, 5, 0.28], [9154, 2, 3, 0.17], [22866, 7, 3, 0.29], [6628, 3, 3, 0.18], [2217, 15, 3, 0.49], [5109, 1, 3, 0.34], [11403, 1, 10, 0.29], [23994, 29, 3, 0.21], [12240, 14, 3, 0.15], [3258, 1, 4, 0.34], [9486, 2, 3, 0.16], [13404, 7, 6, 0.0], [8157, 29, 3, 0.32], [8120, 1, 3, 0.31], [6259, 7, 17, 0.0], [13256, 29, 3, 0.2], [12576, 3, 3, 0.32], [12340, 2, 3, 0.32], [6630, 3, 3, 0.26], [2194, 1, 6, 0.14], [11022, 3, 4, 0.4], [23491, 3, 3, 0.13], [5978, 1, 3, 0.33], [9623, 3, 3, 0.22], [12706, 23, 78, 0.0], [9087, 29, 3, 0.4], [2326, 2, 3, 0.0], [11582, 29, 3, 0.23], [6218, 7, 5, 0.0], [12364, 3, 3, 0.74], [11529, 10, 8, 0.58], [3257, 4, 3, 0.52], [5406, 2, 3, 0.18], [13294, 3, 3, 0.29], [12621, 1, 3, 0.36], [9491, 1, 4, 0.22], [20919, 3, 3, 0.18], [11888, 2, 4, 0.7], [1619, 1, 3, 0.2], [23031, 3, 4, 0.31], [9488, 2, 3, 0.18], [11322, 3, 4, 0.4], [5813, 3, 4, 0.27], [8907, 25, 4, 0.16], [2111, 3, 6, 0.19], [8155, 2, 3, 0.3], [8121, 3, 4, 0.14], [9780, 1, 3, 0.29], [2325, 2, 3, 0.33], [12309, 2, 3, 0.31], [10413, 1, 3, 0.0], [23038, 10, 5, 0.43], [9877, 15, 3, 0.27], [1091, 1, 3, 0.2], [11558, 29, 3, 0.3], [11055, 3, 4, 0.93], [12925, 1, 3, 0.21], [10148, 1, 5, 0.18], [10275, 3, 3, 0.22], [13109, 3, 4, 0.97], [10987, 2, 3, 0.23], [20317, 3, 3, 0.62], [3899, 3, 4, 0.21], [12230, 3, 3, 0.17], [12609, 1, 3, 0.21], [9820, 3, 3, 0.57], [458, 3, 5, 0.17], [5434, 1, 3, 0.32], [5243, 3, 4, 0.18], [17, 1, 3, 0.22], [9779, 1, 3, 0.29], [13023, 1, 3, 0.34], [9612, 12, 3, 0.31], [13855, 3, 3, 0.3], [22330, 3, 4, 0.7], [6225, 1, 22, 0.0], [9088, 25, 3, 0.22], [2418, 80, 3, 0.41], [4967, 2, 3, 0.19], [10986, 2, 3, 0.15], [4178, 3, 3, 0.21], [6966, 3, 3, 0.55], [2743, 3, 3, 0.21], [2866, 2, 3, 0.23], [5538, 1, 3, 0.16], [2417, 80, 3, 0.37], [2103, 1, 3, 0.2], [3906, 14, 4, 0.23], [11859, 1, 3, 0.29], [5811, 3, 3, 0.26], [21778, 2, 3, 0.0], [114, 1, 3, 0.0], [10115, 1, 3, 0.15], [2216, 1, 3, 0.43], [22247, 2, 4, 0.43], [5341, 1, 3, 0.28], [9489, 2, 3, 0.16], [11887, 1, 3, 0.0], [11719, 1, 4, 0.0], [9482, 2, 3, 0.2], [19984, 2, 3, 0.27], [9379, 1, 3, 0.18], [8279, 2, 4, 0.7], [11710, 1, 4, 0.19], [23248, 25, 3, 0.19], [12577, 3, 4, 0.32], [21269, 3, 3, 0.65], [12250, 14, 3, 0.14], [23239, 29, 3, 0.16], [21694, 1, 3, 0.56], [1116, 1, 3, 0.15], [12721, 2, 4, 0.43], [10991, 1, 4, 0.49], [2217, 16, 3, 0.48], [10631, 2, 4, 0.26], [1060, 1, 3, 0.0], [11564, 29, 6, 0.3], [1599, 68, 3, 0.59], [11337, 7, 3, 0.44], [21486, 3, 3, 0.24], [6222, 7, 4, 0.0], [11557, 80, 3, 0.25], [23645, 68, 3, 0.14], [10412, 1, 3, 0.18], [9481, 2, 3, 0.21], [10483, 7, 5, 0.0], [1519, 1, 3, 0.17], [21774, 2, 3, 0.0], [9493, 1, 3, 0.0], [23337, 3, 3, 0.38], [20961, 1, 4, 0.31], [11020, 3, 4, 0.39], [344, 2, 3, 0.28], [19966, 29, 3, 0.18], [21454, 2, 3, 0.27], [13299, 1, 3, 0.28], [8891, 1, 3, 0.0], [9483, 2, 3, 0.22], [424, 11, 9, 0.46], [9484, 2, 3, 0.21], [20921, 3, 3, 0.17], [23380, 29, 3, 0.18], [6225, 7, 3, 0.0], [14013, 3, 3, 0.25], [12645, 1, 4, 0.2], [19996, 2, 3, 0.0], [9480, 2, 3, 0.22], [11634, 1, 3, 0.15], [3340, 3, 3, 0.72], [12356, 1, 3, 0.59], [19970, 25, 3, 0.24], [8189, 10, 4, 0.2], [2169, 3, 3, 0.31], [11105, 3, 3, 0.21], [6220, 7, 4, 0.0], [13256, 25, 3, 0.2], [20918, 3, 3, 0.29], [13200, 10, 3, 0.19], [12417, 3, 4, 0.33], [9864, 10, 5, 0.18], [7191, 1, 4, 0.46], [10396, 1, 4, 0.21], [21773, 2, 3, 0.18], [10988, 2, 3, 0.25], [1260, 1, 3, 0.0], [8676, 2, 4, 0.45], [12302, 2, 3, 0.26], [13494, 3, 4, 0.31], [3977, 3, 3, 0.52], [4866, 1, 3, 0.2], [3721, 25, 3, 0.28], [12255, 14, 3, 0.14], [11427, 1, 3, 0.0], [2202, 1, 3, 0.09], [8357, 1, 3, 0.34], [23546, 3, 4, 0.23], [5660, 2, 3, 0.79], [1814, 2, 3, 0.2], [12612, 1, 3, 0.17], [19968, 29, 3, 0.0], [11732, 3, 3, 0.25], [12028, 2, 4, 0.4], [22087, 10, 4, 0.21], [1560, 1, 3, 0.41], [8281, 2, 4, 0.7], [9952, 1, 3, 0.68], [2863, 2, 3, 0.24], [12024, 2, 3, 0.4], [20920, 3, 3, 0.17], [12623, 10, 4, 0.18], [24126, 3, 3, 0.21], [2669, 1, 3, 0.44], [6799, 7, 4, 0.0], [10414, 1, 3, 0.18], [8187, 10, 5, 0.22], [13853, 3, 3, 0.28], [8104, 1, 13, 0.0], [71, 1, 3, 0.19], [14014, 3, 3, 0.2], [2744, 3, 3, 0.23], [12546, 2, 3, 0.35], [2168, 3, 4, 0.43], [11333, 7, 5, 0.53], [9296, 1, 3, 0.29], [12249, 14, 3, 0.14], [22865, 7, 6, 0.35], [6931, 2, 3, 0.29], [1504, 2, 4, 0.54], [24127, 3, 3, 0.21], [2013, 2, 3, 0.54], [2709, 15, 3, 0.28], [9088, 29, 4, 0.22], [5853, 1, 3, 0.17], [5849, 1, 3, 0.19], [2733, 3, 3, 0.47], [1433, 1, 3, 0.43], [12534, 10, 4, 0.23], [12311, 2, 3, 0.3], [11636, 1, 3, 0.16], [8363, 1, 3, 0.25], [23335, 14, 5, 0.3], [19991, 2, 3, 0.12], [11450, 1, 3, 0.0], [7729, 7, 8, 0.0], [8903, 7, 11, 0.0], [12033, 2, 3, 0.46], [12661, 1, 3, 0.2], [3907, 14, 4, 0.32], [949, 10, 4, 0.33], [12512, 1, 3, 0.25], [5852, 1, 3, 0.16], [947, 1, 3, 0.26], [8510, 1, 6, 0.0], [6565, 7, 3, 0.0], [13116, 1, 3, 0.22], [22088, 10, 4, 0.21], [12496, 1, 3, 0.2], [9782, 1, 4, 0.3], [8891, 7, 20, 0.0], [13487, 1, 3, 0.28], [23994, 25, 3, 0.21], [8968, 1, 3, 0.35], [2835, 3, 8, 0.24], [5420, 2, 3, 0.23], [9460, 1, 3, 0.33], [23040, 1, 3, 0.0], [5940, 1, 3, 0.0], [20952, 3, 3, 0.31], [336, 16, 3, 0.18], [11587, 1, 5, 0.46], [11848, 1, 6, 0.0], [2507, 2, 3, 0.1], [1006, 2, 4, 0.2], [2729, 3, 3, 0.46], [13034, 1, 3, 0.0], [13038, 3, 8, 0.52], [12253, 3, 4, 0.14], [1598, 68, 3, 0.62], [21709, 3, 7, 0.19], [12227, 2, 3, 0.33], [2417, 29, 3, 0.36], [8674, 2, 3, 0.45], [23247, 25, 3, 0.2], [12056, 2, 4, 0.38], [12220, 3, 7, 0.61], [3429, 1, 3, 0.2], [13854, 3, 3, 0.3], [6569, 1, 3, 0.0], [10983, 2, 3, 0.18], [586, 1, 3, 0.23], [22179, 1, 3, 0.25], [23039, 1, 3, 0.0], [12222, 3, 8, 0.18], [19985, 2, 3, 0.19], [13336, 29, 4, 0.18], [11857, 1, 3, 0.29], [6341, 3, 4, 0.0], [12339, 2, 3, 0.37], [6608, 2, 3, 0.21], [6083, 3, 3, 0.19], [6197, 7, 7, 0.0], [2662, 1, 3, 0.41], [11727, 29, 5, 0.27], [2376, 10, 4, 0.16], [19969, 29, 3, 0.28], [5647, 2, 3, 0.14], [1324, 1, 3, 0.2], [13504, 7, 5, 0.0], [19992, 2, 3, 0.0], [23529, 3, 3, 0.23], [2668, 1, 3, 0.51], [11155, 11, 5, 0.16], [12449, 1, 3, 0.21], [3723, 29, 3, 0.44], [2774, 2, 4, 0.54], [10630, 2, 3, 0.26], [4819, 29, 5, 0.36], [12055, 2, 4, 0.38], [12658, 1, 3, 0.45], [880, 2, 3, 0.8], [973, 1, 3, 0.0], [23544, 3, 4, 0.22], [1050, 2, 5, 0.13], [8254, 25, 3, 0.29], [1169, 3, 3, 0.92], [11840, 1, 3, 0.22], [21708, 3, 7, 0.24], [4968, 1, 7, 0.27], [1414, 16, 3, 0.2], [10529, 80, 3, 0.41], [1851, 1, 3, 0.18], [11689, 1, 3, 0.1], [23992, 29, 4, 0.24], [22667, 2, 3, 0.14], [2859, 16, 3, 0.31], [20311, 23, 5, 0.88], [13254, 29, 4, 0.17], [9529, 1, 3, 0.22], [8190, 10, 5, 0.18], [948, 15, 4, 0.13], [21927, 1, 3, 0.12], [4653, 2, 3, 0.22], [2726, 3, 5, 0.51], [12045, 1, 3, 0.18], [19879, 1, 3, 0.15], [12212, 29, 4, 0.24], [788, 2, 3, 0.17], [11321, 3, 3, 0.41], [21777, 2, 3, 0.18], [12911, 3, 7, 0.22], [11495, 1, 3, 0.25], [12232, 3, 3, 0.19], [10640, 1, 3, 0.17], [738, 1, 3, 0.27], [2826, 1, 3, 0.24], [8927, 10, 10, 0.15], [22876, 3, 3, 0.31], [22436, 3, 4, 0.29], [11399, 2, 4, 0.29], [12360, 1, 4, 0.64], [2862, 2, 3, 0.24], [11305, 2, 3, 0.72], [2538, 1, 3, 0.0], [11557, 29, 3, 0.26], [21683, 1, 3, 0.0], [20953, 3, 3, 0.31], [12492, 3, 3, 0.22], [11492, 1, 7, 0.12], [11690, 1, 4, 0.11], [3132, 10, 4, 0.3], [5541, 1, 3, 0.17], [12228, 2, 3, 0.32], [12675, 3, 3, 0.4], [12489, 1, 3, 0.0], [5939, 1, 3, 0.0], [12611, 1, 3, 0.23], [23551, 3, 3, 0.22], [10530, 29, 3, 0.31], [9626, 3, 4, 0.22], [9530, 25, 3, 0.17], [7566, 3, 5, 0.0], [1070, 7, 6, 0.25], [947, 16, 3, 0.26], [3388, 1, 3, 0.43], [11565, 80, 3, 0.31], [7569, 3, 4, 0.0], [2054, 1, 3, 0.0], [2216, 16, 3, 0.44], [11610, 3, 3, 0.21], [12361, 1, 3, 0.66], [5653, 2, 3, 0.16], [2378, 10, 3, 0.18], [2991, 1, 4, 0.42], [8907, 29, 4, 0.16], [11903, 332, 5, 0.0], [9251, 3, 4, 0.47], [10815, 1, 3, 0.0], [1080, 3, 3, 1.36], [13242, 25, 4, 0.22], [12245, 3, 3, 0.14], [12357, 1, 3, 0.65], [2190, 1, 3, 0.17], [3387, 1, 3, 0.43], [23235, 29, 6, 0.26], [10722, 2, 3, 0.16], [4867, 1, 3, 0.2], [8660, 1, 3, 0.35], [21779, 2, 3, 0.0], [6946, 1, 3, 0.52], [2055, 1, 3, 0.0], [670, 3, 3, 0.53], [11721, 1, 3, 0.0], [9148, 2, 3, 0.17], [1049, 2, 4, 0.13], [2491, 3, 4, 0.42], [2216, 15, 3, 0.43], [9129, 1, 3, 0.15], [13393, 23, 3, 0.19], [9347, 1, 3, 0.17], [23533, 3, 4, 0.3], [12946, 3, 4, 0.39], [8753, 1, 3, 0.26], [3908, 7, 5, 0.52], [1513, 3, 4, 0.15], [10530, 80, 3, 0.31], [12219, 3, 5, 0.61], [8673, 2, 3, 0.44], [6965, 3, 3, 0.27], [10632, 2, 3, 0.26], [12025, 2, 3, 0.4], [3</t>
+  </si>
+  <si>
+    <t>[[305, 2, 14, 0.32], [130, 1, 9, 0.16], [6935, 2, 47, 0.58], [143, 2, 10, 0.26], [2328, 2, 18, 0.38], [145, 2, 9, 0.27], [141, 2, 11, 0.27], [146, 2, 10, 0.35], [8650, 2, 15, 0.44], [8672, 2, 15, 0.37], [2327, 2, 12, 0.38], [2778, 2, 24, 0.4], [5491, 2, 7, 0.33], [205, 2, 6, 0.33], [11838, 2, 12, 0.37], [11737, 2, 9, 0.14], [5493, 2, 7, 0.34], [248, 1, 8, 0.29], [362, 2, 14, 0.27], [11837, 2, 9, 0.37], [75, 2, 11, 0.0], [361, 2, 9, 0.27], [144, 2, 7, 0.36], [206, 2, 5, 0.33], [417, 2, 8, 0.27], [8648, 2, 6, 0.44], [11835, 2, 9, 0.36], [523, 2, 8, 0.27], [8853, 2, 19, 0.58], [589, 2, 10, 0.0], [1005, 2, 5, 0.17], [615, 2, 9, 0.37], [9507, 3, 4, 0.1], [434, 2, 6, 0.15], [990, 2, 6, 0.56], [12721, 2, 10, 0.36], [1504, 2, 11, 0.11], [2049, 3, 13, 0.15], [11681, 2, 14, 0.25], [8675, 2, 9, 0.37], [326, 2, 13, 0.0], [1124, 2, 11, 0.22], [11739, 2, 8, 0.14], [378, 2, 5, 0.44], [8915, 2, 8, 0.0], [435, 2, 4, 0.14], [151, 1, 13, 0.19], [6936, 2, 14, 0.58], [2776, 2, 7, 0.4], [76, 2, 6, 0.25], [1446, 2, 5, 0.0], [11738, 2, 9, 0.14], [142, 2, 6, 0.27], [8649, 2, 5, 0.44], [12720, 2, 5, 0.36], [2497, 2, 6, 0.42], [8676, 2, 6, 0.37], [59, 3, 8, 0.19], [3, 2, 10, 0.87], [10574, 3, 8, 0.36], [8938, 2, 5, 0.0], [11234, 2, 9, 0.25], [1007, 2, 8, 0.21], [3670, 2, 10, 0.55], [2424, 29, 7, 0.47], [2055, 3, 4, 0.23], [1413, 15, 3, 0.21], [2054, 3, 5, 0.23], [2423, 29, 6, 0.38], [2423, 80, 6, 0.38], [2424, 80, 5, 0.47], [412, 1, 5, 0.29], [346, 3, 4, 0.26], [22247, 2, 5, 0.36], [10993, 2, 8, 0.24], [6497, 1, 10, 0.79], [1429, 2, 4, 0.0], [8673, 2, 6, 0.34], [2050, 3, 5, 0.23], [1163, 3, 5, 0.21], [2859, 15, 3, 0.28], [413, 1, 4, 0.31], [140, 2, 4, 0.34], [10149, 3, 21, 0.33], [7084, 3, 3, 0.49], [307, 2, 3, 0.33], [3429, 15, 3, 0.19], [8274, 3, 5, 0.19], [13962, 1, 3, 0.23], [2774, 2, 6, 0.41], [6158, 2, 8, 0.19], [944, 15, 3, 0.23], [1339, 3, 18, 0.18], [411, 2, 3, 0.7], [13928, 1, 3, 0.3], [11919, 1, 6, 0.2], [346, 1, 9, 0.25], [1126, 2, 5, 0.21], [74, 1, 9, 1.14], [7704, 2, 7, 0.29], [8943, 3, 4, 0.28], [22316, 3, 6, 0.3], [418, 2, 3, 0.27], [159, 3, 7, 0.16], [9784, 1, 3, 0.27], [20252, 2, 5, 0.31], [1050, 2, 3, 0.16], [7705, 2, 7, 0.29], [950, 1, 7, 0.41], [3478, 2, 8, 0.49], [13967, 1, 3, 0.23], [1243, 2, 7, 1.05], [18964, 1, 6, 0.28], [2057, 3, 5, 0.23], [1339, 1, 5, 0.18], [7706, 2, 7, 0.29], [114, 3, 3, 0.09], [14037, 3, 5, 0.15], [13028, 3, 6, 0.85], [11236, 2, 5, 0.24], [20256, 2, 3, 0.34], [1049, 2, 3, 0.16], [3891, 1, 3, 0.84], [963, 3, 4, 0.32], [11504, 2, 3, 0.27], [410, 1, 3, 0.96], [565, 2, 8, 0.49], [6952, 1, 6, 0.39], [3893, 1, 4, 0.84], [336, 15, 3, 0.2], [105, 3, 3, 0.09], [414, 1, 3, 0.31], [416, 1, 4, 0.31], [7004, 1, 3, 0.05], [229, 1, 3, 0.38], [11490, 1, 3, 0.7], [6494, 1, 4, 0.8], [3889, 1, 3, 0.82], [13965, 1, 3, 0.21], [13034, 3, 6, 0.55], [1492, 1, 4, 0.8], [7707, 2, 5, 0.29], [6097, 80, 3, 0.46], [8944, 3, 3, 0.19], [6098, 80, 3, 0.39], [21793, 1, 7, 0.62], [5208, 3, 7, 0.22], [20555, 2, 3, 0.21], [11089, 1, 8, 0.34], [3674, 2, 9, 0.47], [308, 1, 15, 0.27], [6630, 3, 3, 0.25], [10716, 3, 4, 0.13], [60, 3, 7, 0.26], [2912, 1, 7, 0.21], [1490, 1, 5, 0.31], [11491, 2, 3, 0.27], [964, 15, 3, 0.18], [12722, 2, 4, 0.36], [8635, 3, 5, 0.19], [12224, 1, 4, 0.19], [83, 2, 4, 0.17], [6359, 10, 14, 0.17], [22317, 3, 5, 0.3], [9049, 2, 4, 0.34], [7036, 1, 6, 0.48], [2422, 29, 5, 0.43], [202, 2, 3, 0.14], [13260, 29, 3, 0.32], [1413, 16, 3, 0.21], [9507, 1, 7, 0.1], [2422, 80, 4, 0.43], [7708, 2, 4, 0.29], [11914, 1, 4, 0.28], [563, 2, 3, 0.16], [942, 3, 4, 0.31], [22558, 3, 4, 0.58], [1414, 15, 3, 0.21], [20258, 2, 3, 0.33], [88, 10, 11, 0.32], [6098, 29, 3, 0.39], [11159, 1, 14, 0.66], [5165, 1, 5, 0.23], [335, 3, 13, 0.37], [214, 3, 11, 0.18], [247, 1, 3, 0.26], [9827, 3, 3, 0.22], [8939, 2, 3, 0.0], [7703, 2, 4, 0.29], [9690, 1, 3, 0.3], [5020, 23, 17, 0.28], [6097, 29, 4, 0.46], [10406, 10, 9, 0.33], [6628, 3, 3, 0.17], [84, 2, 4, 0.16], [12373, 1, 16, 1.1], [71, 15, 3, 0.19], [2331, 1, 3, 1.21], [12269, 2, 3, 0.28], [11235, 2, 6, 0.66], [440, 3, 3, 1.29], [439, 1, 3, 0.4], [7567, 3, 3, 0.13], [515, 24, 4, 0.32], [11489, 1, 3, 0.7], [10411, 10, 8, 0.28], [332, 2, 3, 0.14], [590, 15, 3, 0.18], [13964, 1, 3, 0.21], [13968, 1, 3, 0.21], [13033, 3, 6, 0.55], [19980, 2, 3, 0.0], [6629, 3, 3, 0.17], [21712, 3, 15, 0.25], [159, 1, 10, 0.15], [1409, 15, 3, 0.23], [13498, 3, 4, 0.58], [10407, 10, 8, 1.46], [12229, 2, 4, 0.29], [9854, 1, 3, 0.47], [186, 3, 10, 0.28], [12526, 2, 4, 0.42], [10717, 3, 3, 0.19], [6627, 3, 3, 0.22], [9786, 1, 3, 0.27], [9785, 1, 3, 0.27], [6496, 1, 5, 1.18], [7885, 4, 4, 0.16], [2421, 29, 3, 0.0], [9491, 21, 9, 0.22], [3104, 1, 6, 0.44], [5209, 3, 6, 0.22], [3495, 3, 17, 0.28], [9372, 1, 8, 0.53], [2991, 3, 4, 0.28], [10410, 10, 7, 1.46], [1274, 1, 3, 0.32], [21798, 1, 4, 0.19], [21713, 3, 9, 0.18], [9126, 1, 5, 0.7], [11844, 2, 4, 0.47], [11920, 1, 4, 0.2], [10409, 10, 8, 0.32], [11769, 1, 3, 0.47], [973, 3, 7, 0.68], [11158, 1, 17, 0.68], [10408, 10, 10, 0.27], [215, 4, 3, 0.48], [9081, 3, 11, 0.4], [11811, 1, 4, 0.32], [11677, 1, 9, 0.43], [2322, 2, 4, 0.75], [345, 3, 4, 0.4], [23275, 2, 3, 0.27], [13263, 29, 3, 0.3], [9829, 3, 3, 0.18], [11603, 2, 4, 0.51], [11954, 1, 4, 0.01], [2805, 137, 9, 0.81], [96, 11, 18, 0.41], [11808, 1, 7, 0.24], [11767, 1, 3, 0.46], [21269, 3, 3, 1.07], [2049, 1, 3, 0.15], [2421, 80, 4, 0.6], [8283, 2, 6, 0.18], [2821, 3, 10, 0.23], [1895, 3, 4, 0.46], [9783, 1, 3, 0.26], [415, 1, 3, 0.31], [8943, 1, 4, 0.28], [432, 3, 5, 0.31], [93, 11, 19, 0.13], [12764, 2, 6, 0.28], [1886, 2, 5, 0.88], [21781, 2, 3, 0.19], [6360, 10, 9, 0.14], [436, 2, 3, 0.4], [11399, 2, 3, 0.23], [13928, 2, 3, 0.3], [5584, 3, 3, 0.69], [147, 1, 3, 0.38], [94, 4, 3, 0.46], [107, 2, 6, 0.31], [9124, 1, 4, 0.7], [149, 2, 3, 0.38], [7250, 3, 3, 0.16], [2326, 2, 3, 0.0], [11953, 1, 6, 0.4], [4232, 80, 4, 0.41], [1548, 1, 3, 0.3], [947, 15, 3, 0.29], [5946, 1, 3, 0.86], [9204, 3, 4, 0.38], [9082, 3, 20, 0.48], [11510, 3, 5, 0.32], [10398, 2, 3, 0.22], [13244, 1, 7, 0.23], [1413, 1, 7, 0.22], [12225, 1, 3, 0.18], [82, 2, 3, 0.17], [7886, 4, 4, 0.16], [2438, 2, 7, 0.2], [8898, 3, 5, 0.88], [7629, 1, 3, 0.29], [3430, 15, 3, 0.2], [11671, 1, 7, 0.4], [6356, 2, 3, 0.16], [4940, 1, 6, 0.23], [11288, 2, 3, 1.64], [3934, 5, 13, 0.88], [2104, 3, 9, 0.19], [7122, 3, 3, 0.25], [19924, 2, 4, 0.44], [437, 3, 3, 0.28], [8926, 1, 3, 0.8], [12271, 2, 3, 0.29], [13488, 1, 5, 0.26], [10406, 1, 3, 0.31], [8285, 2, 4, 0.2], [11772, 1, 5, 1.16], [9760, 29, 4, 0.58], [11770, 1, 7, 0.77], [11087, 2, 5, 0.19], [11836, 2, 4, 0.37], [19687, 1, 3, 0.34], [2013, 2, 3, 0.5], [2859, 16, 3, 0.28], [11402, 1, 3, 0.85], [13025, 3, 4, 0.49], [823, 1, 3, 0.4], [21704, 3, 11, 0.19], [270, 3, 3, 0.28], [9342, 2, 4, 1.08], [11915, 3, 22, 0.19], [7558, 3, 3, 0.13], [159, 16, 3, 0.15], [7120, 3, 3, 0.25], [10525, 3, 4, 0.69], [201, 3, 4, 0.4], [11960, 3, 4, 0.14], [11156, 11, 7, 0.16], [5165, 2, 6, 0.24], [9358, 1, 4, 0.78], [8599, 1, 3, 0.85], [1414, 16, 3, 0.21], [1309, 1, 3, 0.32], [20927, 1, 3, 0.05], [8659, 1, 3, 0.31], [10147, 1, 5, 0.17], [7887, 4, 4, 0.16], [10413, 10, 6, 1.09], [11161, 1, 9, 0.62], [11404, 2, 12, 0.31], [11930, 1, 3, 0.58], [12870, 1, 3, 0.5], [22573, 2, 3, 0.27], [3980, 4, 4, 0.35], [2109, 1, 7, 0.22], [5976, 1, 5, 0.71], [220, 4, 3, 0.52], [7119, 3, 3, 0.25], [991, 2, 3, 0.72], [8286, 2, 4, 0.17], [2912, 2, 8, 0.2], [5243, 3, 3, 0.2], [11180, 1, 3, 0.74], [12223, 1, 3, 0.18], [13023, 3, 7, 0.35], [11931, 1, 3, 0.58], [11581, 29, 6, 0.48], [7005, 1, 3, 0.05], [5005, 3, 6, 0.22], [9828, 3, 3, 0.22], [12309, 2, 3, 0.33], [11084, 2, 5, 0.19], [9065, 2, 4, 0.17], [11611, 2, 3, 0.27], [2103, 15, 3, 0.2], [71, 16, 3, 0.19], [11152, 11, 7, 0.18], [11674, 1, 3, 0.32], [6360, 1, 3, 0.16], [107, 7, 5, 0.31], [3900, 3, 3, 0.32], [21060, 1, 3, 0.34], [3258, 7, 5, 0.34], [938, 3, 4, 0.32], [3429, 16, 3, 0.19], [12992, 3, 9, 0.29], [13024, 3, 4, 0.48], [11088, 2, 5, 0.19], [11586, 1, 9, 0.4], [4253, 1, 3, 0.25], [1703, 2, 3, 0.73], [6805, 1, 4, 0.28], [4372, 10, 9, 0.32], [9877, 15, 3, 0.3], [3609, 24, 4, 0.66], [409, 1, 3, 0.29], [10093, 3, 12, 0.44], [3143, 3, 3, 0.44], [10455, 29, 3, 0.56], [9691, 1, 3, 0.3], [3981, 3, 11, 0.43], [958, 2, 3, 0.2], [10409, 1, 3, 0.3], [11290, 2, 3, 1.64], [10414, 10, 6, 0.17], [97, 11, 15, 0.18], [12340, 2, 3, 0.34], [2436, 4, 3, 0.29], [2111, 3, 7, 0.19], [1701, 2, 3, 0.67], [11154, 11, 8, 0.23], [19932, 1, 3, 0.19], [2368, 3, 4, 0.11], [470, 1, 3, 0.13], [11179, 1, 3, 0.74], [12517, 2, 4, 0.38], [8104, 1, 4, 0.58], [19878, 1, 3, 0.15], [110, 4, 3, 0.32], [20196, 2, 6, 0.33], [98, 11, 18, 0.0], [3257, 4, 3, 0.92], [10411, 1, 3, 0.27], [5517, 1, 3, 0.3], [10514, 3, 4, 0.18], [11690, 2, 4, 0.16], [424, 11, 10, 1.08], [10410, 1, 3, 0.0], [1052, 2, 3, 0.25], [12241, 3, 3, 0.14], [1414, 1, 4, 0.22], [11085, 2, 6, 0.19], [973, 1, 3, 0.0], [11812, 1, 3, 0.19], [11678, 1, 6, 0.58], [13037, 3, 4, 0.95], [5585, 3, 3, 0.67], [10407, 1, 3, 0.0], [8945, 3, 4, 0.86], [8284, 2, 4, 0.17], [8600, 1, 3, 0.81], [2109, 3, 11, 0.22], [11778, 1, 4, 0.22], [8636, 3, 5, 0.64], [21700, 3, 3, 0.53], [23276, 3, 4, 0.35], [12497, 3, 4, 0.21], [2438, 1, 3, 0.2], [13249, 29, 6, 0.63], [2108, 1, 3, 0.18], [10172, 3, 5, 0.21], [10384, 3, 3, 0.16], [8085, 1, 3, 0.6], [12496, 3, 4, 0.21], [11967, 1, 3, 0.15], [8356, 1, 3, 0.6], [13036, 3, 4, 0.95], [2108, 3, 6, 0.18], [944, 16, 3, 0.23], [1125, 2, 5, 0.0], [10527, 3, 10, 0.45], [1575, 1, 3, 0.22], [6575, 3, 4, 0.41], [11304, 2, 3, 1.64], [8188, 10, 6, 0.2], [12058, 3, 5, 0.17], [11587, 1, 5, 0.46], [952, 4, 3, 0.2], [13243, 1, 5, 0.3], [8897, 3, 5, 0.87], [12935, 3, 4, 0.4], [10521, 3, 5, 0.32], [10408, 1, 3, 0.26], [2738, 3, 3, 0.45], [9671, 3, 4, 0.27], [951, 4, 3, 0.23], [66, 15, 3, 0.16], [7702, 2, 28, 0.29], [12979, 1, 3, 0.29], [19383, 21, 8, 0.26], [11887, 2, 7, 0.24], [13433, 2, 6, 0.37], [9997, 80, 3, 0.38], [10148, 1, 3, 0.13], [71, 1, 3, 0.19], [12706, 23, 9, 0.0], [11155, 11, 7, 0.23], [2709, 15, 3, 0.31], [22236, 1, 5, 0.22], [12979, 25, 10, 0.29], [9945, 3, 5, 0.17], [524, 1, 3, 0.29], [13034, 1, 4, 0.0], [1880, 4, 3, 0.98], [1853, 1, 3, 0.2], [19992, 2, 3, 0.0], [5869, 1, 3, 0.32], [4327, 1, 3, 0.18], [12791, 2, 8, 0.21], [3576, 25, 3, 0.3], [11814, 1, 3, 0.21], [9840, 25, 8, 0.24], [11427, 2, 3, 0.17], [4354, 1, 3, 0.42], [6540, 25, 3, 0.38], [11952, 1, 4, 0.44], [10994, 2, 5, 0.25], [7084, 1, 5, 0.0], [12764, 1, 3, 0.28], [2859, 1, 3, 0.28], [1620, 1, 3, 0.21], [5513, 2, 3, 0.25], [2103, 16, 3, 0.2], [3429, 1, 3, 0.2], [12516, 2, 3, 0.38], [8283, 1, 3, 0.17], [3983, 4, 3, 0.35], [11485, 24, 3, 0.6], [12994, 3, 7, 0.29], [9803, 3, 7, 0.16], [21752, 2, 3, 0.0], [14040, 3, 4, 0.17], [11583, 29, 3, 0.23], [19880, 1, 3, 0.15], [420, 2, 6, 0.28], [21706, 3, 9, 0.21], [12993, 3, 6, 0.29], [3576, 29, 3, 0.3], [148, 1, 3, 0.38], [336, 16, 3, 0.2], [22318, 3, 4, 0.45], [5005, 1, 4, 0.22], [1683, 1, 3, 0.21], [5939, 3, 3, 0.25], [3337, 1, 3, 0.22], [6864, 1, 3, 0.33], [7457, 3, 5, 0.21], [12311, 2, 3, 0.28], [21783, 2, 3, 0.18], [7457, 1, 4, 0.21], [20649, 1, 3, 0.86], [6267, 23, 11, 0.24], [6036, 23, 4, 0.78], [21059, 1, 4, 0.34], [590, 16, 3, 0.18], [11152, 1, 3, 0.18], [3442, 29, 3, 0.35], [12053, 2, 6, 0.38], [13494, 3, 4, 0.57], [12057, 2, 4, 0.38], [3894, 1, 3, 0.87], [23796, 2, 8, 0.18], [3984, 3, 6, 0.43], [10581, 3, 6, 0.7], [12054, 2, 3, 0.38], [12339, 2, 3, 0.31], [10507, 2, 3, 0.16], [2419, 80, 3, 0.6], [11625, 29, 3, 0.2], [9996, 80, 3, 0.46], [1054, 10, 6, 0.16], [6359, 1, 3, 0.19], [5872, 1, 3, 0.32], [23040, 10, 6, 1.47], [1744, 1, 3, 0.32], [13323, 3, 3, 0.21], [9841, 25, 8, 0.24], [8637, 3, 6, 0.69], [12791, 1, 6, 0.22], [11813, 1, 4, 0.29], [471, 1, 3, 0.17], [19686, 1, 3, 0.17], [1450, 2, 4, 0.19], [12924, 1, 3, 0.21], [13198, 29, 3, 0.31], [12449, 2, 5, 0.22], [13486, 1, 3, 0.26], [5940, 3, 3, 0.23], [963, 1, 3, 0.32], [5341, 15, 3, 0.28], [10707, 1, 4, 0.58], [6266, 23, 10, 0.24], [2985, 3, 3, 0.19], [3258, 1, 4, 0.34], [2419, 29, 3, 0.6], [23031, 3, 3, 0.31], [11085, 1, 3, 0.2], [5340, 23, 6, 0.2], [12302, 2, 3, 0.26], [2217, 1, 4, 0.48], [12653, 1, 5, 0.19], [9289, 29, 3, 0.63], [11710, 3, 6, 0.22], [11960, 1, 4, 0.14], [5733, 2, 10, 0.21], [2369, 3, 4, 0.25], [13258, 29, 5, 0.36], [1801, 1, 3, 0.6], [12658, 1, 4, 0.54], [4372, 1, 3, 0.34], [21003, 2, 3, 0.33], [11527, 10, 6, 0.15], [3840, 1, 3, 0.2], [11091, 1, 3, 0.15], [6872, 25, 4, 0.31], [2111, 1, 3, 0.18], [19931, 1, 5, 0.17], [2991, 1, 3, 0.28], [13258, 25, 3, 0.36], [8944, 1, 3, 0.19], [6035, 23, 4, 0.78], [11528, 10, 5, 0.15], [21701, 3, 3, 0.52], [11687, 2, 4, 0.15], [11901, 2, 3, 0.23], [2990, 3, 3, 0.36], [3230, 1, 4, 0.19], [13244, 2, 7, 0.23], [8896, 1, 3, 0.58], [11794, 2, 5, 0.15], [9960, 3, 3, 0.14], [3610, 24, 3, 0.38], [19883, 1, 3, 0.15], [21004, 2, 3, 0.33], [3334, 5, 9, 0.75], [12647, 1, 5, 0.35], [3909, 7, 6, 0.32], [13035, 3, 5, 0.5], [1523, 1, 3, 0.48], [9820, 3, 3, 0.72], [20650, 1, 3, 0.88], [11426, 25, 3, 0.3], [11156, 1, 3, 0.16], [11450, 2, 4, 0.16], [12503, 1, 7, 0.18], [4232, 29, 3, 0.41], [11793, 2, 4, 0.78], [23920, 2, 3, 0.46], [9672, 3, 4, 0.27], [8286, 1, 3, 0.16], [12538, 3, 4, 0.14], [5735, 2, 6, 0.23], [11529, 10, 5, 0.15], [12594, 7, 3, 0.14], [2323, 2, 3, 0.75], [506, 1, 3, 0.38], [8753, 2, 6, 0.25], [9125, 1, 7, 0.7], [12379, 1, 3, 0.58], [5646, 2, 3, 0.17], [6872, 29, 3, 0.31], [12010, 3, 3, 0.06], [13243, 2, 5, 0.3], [1813, 2, 3, 0.12], [12239, 3, 4, 0.13], [19341, 2, 3, 0.18], [1668, 1, 3, 0.3], [2857, 1, 3, 0.17], [21703, 3, 3, 0.53], [2325, 2, 3, 0.75], [3338, 1, 3, 0.31], [10537, 3, 4, 0.21], [19964, 25, 4, 0.35], [2196, 25, 3, 0.7], [21317, 3, 3, 0.17], [12663, 1, 3, 0.15], [9778, 1, 3, 0.29], [19982, 2, 3, 0.19], [19685, 1, 3, 0.0], [3910, 7, 8, 0.33], [10254, 1, 3, 0.49], [3899, 3, 3, 0.29], [2308, 25, 4, 0.41], [4175, 3, 9, 0.43], [1409, 1, 3, 0.23], [10720, 80, 3, 0.24], [12059, 3, 5, 0.17], [23039, 10, 6, 1.47], [11182, 1, 14, 1.25], [12646, 1, 6, 0.36], [11090, 1, 3, 0.15], [3664, 5, 13, 0.93], [12576, 3, 4, 0.29], [11426, 29, 3, 0.3], [4651, 2, 3, 0.21], [4222, 4, 3, 0.44], [20965, 3, 4, 0.58], [11116, 1, 3, 0.15], [4176, 4, 3, 0.35], [1120, 1, 3, 0.18], [11899, 2, 3, 0.24], [3577, 25, 4, 0.26], [23028, 3, 4, 0.31], [8189, 10, 5, 0.2], [426, 1, 5, 0.3], [5153, 2, 3, 0.2], [11412, 29, 3, 0.56], [8355, 1, 3, 0.6], [22126, 2, 3, 0.18], [11155, 1, 3, 0.19], [21316, 3, 3, 0.17], [13033, 1, 3, 0.0], [12236, 3, 4, 0.15], [13293, 3, 4, 0.29], [9995, 80, 3, 0.18], [12656, 1, 3, 0.45], [334, 25, 4, 0.94], [12055, 2, 3, 0.38], [12338, 29, 3, 0.23], [21010, 2, 3, 0.33], [922, 1, 3, 0.14], [10668, 3, 3, 0.25], [1648, 1, 3, 0.48], [23032, 3, 4, 0.3], [944, 1, 3, 0.23], [13259, 29, 5, 0.0], [4032, 29, 6, 0.44], [9777, 1, 3, 0.22], [3575, 29, 3, 0.31], [23611, 3, 4, 0.32], [19977, 2, 3, 1.05], [13247, 29, 3, 0.0], [9085, 25, 4, 0.58], [1120, 3, 6, 0.18], [11564, 29, 5, 0.39], [1743, 1, 3, 0.32], [12304, 1, 8, 1.11], [2992, 3, 3, 0.36], [2492, 1, 3, 0.27], [10666, 3, 3, 0.22], [19981, 2, 3, 0.12], [1728, 1, 3, 0.29], [19882, 1, 3, 0.15], [4966, 2, 3, 0.14], [11150, 2, 5, 0.2], [21454, 2, 3, 0.19], [7673, 7, 13, 0.18], [45, 2, 3, 1.47], [515, 1, 3, 0.0], [10670, 3, 3, 0.19], [23539, 3, 3, 0.24], [19375, 3, 3, 0.15], [12654, 1, 3, 0.45], [1722, 2, 3, 0.17], [12249, 14, 3, 0.14], [21712, 1, 3, 0.25], [12585, 3, 4, 0.29], [3989, 3, 4, 0.43], [8927, 10, 10, 0.21], [12030, 2, 3, 0.4], [11084, 1, 3, 0.2], [4326, 1, 3, 0.18], [8754, 2, 5, 0.19], [8106, 10, 3, 0.27], [5577, 3, 3, 0.59], [1432, 25, 4, 0.65], [21269, 1, 3, 0.0], [21091, 7, 4, 0.15], [12227, 2, 3, 0.75], [11087, 1, 3, 0.2], [11088, 1, 3, 0.2], [12056, 2, 3, 0.38], [11885, 2, 4, 0.24], [8756, 2, 6, 0.25], [8191, 10, 5, 0.19], [11492, 1, 3, 0.0], [22888, 3, 3, 0.22], [972, 3, 4, 0.31], [8688, 14, 4, 0.36], [8280, 2, 3, 1.08], [66, 1, 4, 0.16], [3577, 29, 3, 0.27], [21773, 2, 3, 0.18], [936, 3, 4, 0.3], [11895, 1, 3, 0.14], [3016, 68, 3, 0.48], [345, 1, 4, 0.0], [560, 1, 3, 0.58], [12588, 3, 4, 0.36], [9342, 1, 3, 0.0], [5111, 1, 3, 0.33], [10574, 1, 3, 0.35], [13259, 25, 3, 0.77], [11771, 1, 3, 0.52], [21774, 2, 3, 0.0], [5866, 1, 3, 0.22], [21315, 3, 3, 0.17], [3575, 25, 3, 0.31], [10529, 80, 3, 0.41], [1619, 1, 4, 0.2], [5730, 2, 3, 0.0], [8360, 1, 3, 0.31], [964, 16, 3, 0.18], [1406, 25, 3, 0.24], [19384, 2, 3, 0.19], [1514, 1, 3, 0.16], [21486, 3, 3, 0.26], [4586, 10, 10, 0.2], [10531, 14, 5, 0.26], [13853, 3, 3, 0.28], [12923, 1, 3, 0.2], [2103, 1, 3, 0.2], [5341, 16, 3, 0.28], [7573, 1, 7, 0.32], [344, 2, 4, 0.28], [11092, 1, 3, 0.15], [11582, 29, 3, 0.26], [949, 10, 3, 0.64], [3892, 1, 3, 0.74], [9085, 29, 3, 0.58], [1814, 2, 3, 0.14], [23992, 29, 5, 0.23], [21699, 3, 3, 0.29], [11154, 1, 3, 0.2], [1095, 2, 4, 0.18], [19984, 2, 3, 0.73], [20966, 3, 4, 0.58], [13324, 3, 3, 0.21], [12930, 2, 3, 0.2], [13325, 3, 4, 0.25], [1805, 2, 3, 0.7], [22968, 1, 3, 0.19], [11619, 1, 3, 0.27], [11859, 1, 3, 0.34], [19334, 2, 3, 0.17], [12614, 1, 3, 0.21], [8285, 1, 3, 0.19], [11861, 3, 3, 0.23], [13487, 1, 3, 0.26], [11413, 29, 3, 0.56], [13257, 29, 7, 0.35], [8990, 25, 3, 0.39], [10719, 80, 3, 0.26], [66, 16, 3, 0.17], [6728, 1, 3, 0.24], [13023, 1, 3, 0.34], [11886, 2, 4, 0.27], [1324, 1, 3, 0.22], [5452, 1, 3, 0.29], [12029, 2, 4, 0.4], [21697, 3, 3, 0.28], [9960, 1, 3, 0.14], [5868, 1, 3, 0.32], [7191, 1, 4, 0.55], [23030, 3, 4, 0.29], [3390, 1, 3, 0.49], [10459, 3, 4, 0.82], [333, 25, 3, 0.93], [11689, 2, 4, 0.15], [4001, 3, 7, 0.42], [10580, 3, 4, 0.86], [11618, 1, 3, 0.27], [3430, 1, 3, 0.2], [12270, 2, 3, 0.29], [9087, 25, 4, 0.4], [9841, 1, 4, 0.23], [12218, 3, 4, 0.26], [12031, 2, 3, 0.4], [10669, 3, 3, 0.23], [21480, 7, 6, 0.56], [12032, 2, 3, 0.4], [10124, 1, 5, 0.18], [1059, 1, 5, 0.0], [10530, 80, 4, 0.41], [2287, 25, 3, 0.39], [9796, 3, 10, 0.41], [947, 16, 3, 0.29], [12952, 21, 3, 0.68], [23540, 3, 3, 0.23], [9797, 3, 7, 0.41], [209, 3, 3, 0.42], [4030, 25, 3, 0.33], [2504, 10, 8, 0.13], [11868, 3, 3, 0.26], [13855, 3, 4, 0.3], [22321, 1, 3, 0.17], [11467, 1, 3, 0.89], [21789, 2, 6, 0.19], [474, 1, 3, 0.27], [6034, 23, 4, 0.78], [11900, 2, 3, 0.2], [20978, 1, 3, 0.59], [11710, 1, 3, 0.22], [11493, 1, 3, 0.18], [2104, 1, 3, 0.19], [1024, 1, 3, 0.17], [22908, 3, 5, 0.56], [13336, 29, 4, 0.27], [23038, 10, 5, 1.08], [5769, 3, 8, 0.0], [1055, 2, 4, 0.13], [20198, 2, 3, 0.33], [5152, 2, 3, 0.59], [4043, 25, 4, 0.23], [95, 3, 8, 0.93], [23660, 2, 3, 0.45], [10462, 3, 5, 0.82], [21487, 3, 3, 0.26], [2743, 3, 4, 0.24], [12587, 3, 4, 0.36], [11775, 1, 3, 0.67], [23247, 25, 3, 0.15], [3898, 3, 3, 0.29], [1059, 3, 4, 0.29], [11226, 1, 3, 0.19], [9207, 29, 4, 0.22], [9922, 11, 7, 0.2], [11162, 1, 26, 1.0], [12240, 14, 3, 0.13], [9840, 1, 3, 0.22], [3896, 29, 3, 0.33], [22878, 7, 3, 0.28], [9253, 3, 4, 0.28], [3988, 4, 3, 0.39], [5128, 1, 3, 0.26], [13399, 3, 3, 0.14], [11848, 1, 3, 0.29], [1407, 25, 3, 0.69], [3024, 3, 3, 0.21], [88, 1, 3, 0.33], [3982, 3, 12, 0.42], [11888, 2, 3, 1.08], [8279, 2, 4, 1.08], [12332, 2, 3, 0.21], [4653, 2, 3, 0.22], [105, 1, 3, 0.0], [1742, 1, 3, 0.33], [13268, 29, 3, 0.29], [59, 1, 3, 0.0], [5867, 1, 3, 0.32], [12489, 1, 3, 0.13], [12586, 3, 4, 0.36], [5734, 2, 4, 0.0], [13004, 3, 3, 0.13], [11846, 3, 4, 0.26], [19988, 2, 3, 0.0], [962, 10, 6, 0.18], [12033, 2, 3, 0.4], [5769, 1, 4, 0.0], [6540, 29, 3, 0.38], [11181, 1, 7, 1.07], [20556, 2, 3, 0.29], [3599, 25, 3, 1.23], [3906, 14, 4, 0.31], [2835, 3, 6, 0.24], [10722, 2, 3, 0.16], [11896, 2, 3, 0.17], [9087, 29, 5, 0.4], [3905, 14, 4, 0.0], [12335, 2, 3, 0.21], [3976, 3, 4, 0.43], [3021, 68, 3, 0.18], [3975, 4, 3, 0.35], [20977, 1, 3, 0.59], [23960, 3, 3, 0.22], [10460, 3, 4, 0.82], [2833, 3, 6, 0.15], [11887, 1, 4, 0.24], [1432, 2, 3, 0.0], [9493, 1, 8, 0.55], [4329, 3, 4, 0.17], [5871, 1, 3, 0.31], [10172, 1, 3, 0.21], [19966, 25, 3, 0.2], [12502, 1, 5, 0.92], [3986, 4, 3, 0.35], [10414, 1, 3, 0.18], [19342, 2, 3, 0.21], [3559, 11, 11, 0.25], [13854, 3, 4, 0.3], [12255, 14, 3, 0.15], [7673, 2, 3, 0.17], [5811, 3, 3, 0.26], [825, 1, 3, 0.18], [23545, 3, 5, 0.26], [10721, 80, 3, 0.23], [23544, 3, 4, 0.26], [8167, 7, 4, 0.47], [12250, 14, 3, 0.14], [2308, 29, 3, 0.41], [12024, 2, 3, 0.4], [2364, 3, 4, 0.27], [5812, 3, 3, 0.3], [12025, 2, 3, 0.4], [19965, 25, 4, 0.2], [21476, 7, 3, 0.47], [11633, 1, 3, 0.17], [109, 4, 3, 0.35], [11215, 1, 3, 0.31], [2324, 2, 3, 0.82], [22877, 7, 4, 0.29], [8281, 2, 5, 1.08], [1453, 2, 3, 0.23], [11435, 2, 4, 0.16], [19339, 2, 3, 0.17], [12494, 3, 3, 0.15], [5813, 3, 4, 0.27], [9209, 25, 3, 0.32], [4043, 29, 3, 0.23], [12034, 2, 3, 0.4], [8945, 1, 4, 0.0], [1070, 7, 8, 0.25], [9138, 2, 4, 0.33], [8190, 10, 5, 0.18], [201, 1, 4, 0.0], [96, 1, 3, 0.0], [12613, 1, 3, 0.22], [19358, 23, 4, 0.21], [12162, 2, 3, 0.21], [2234, 1, 3, 0.32], [10446, 10, 8, 0.19], [11093, 1, 3, 0.15], [9780, 1, 3, 0.29], [13251, 29, 3, 0.22], [13485, 1, 3, 0.26], [10897, 1, 6, 0.96], [22037, 7, 7, 0.31], [9998, 80, 3, 0.48], [6575, 1, 4, 0.41], [3903, 14, 4, 0.36], [114, 1, 3, 0.0], [8156, 25, 3, 0.93], [21320, 7, 9, 0.5], [336, 1, 7, 0.2], [2417, 29, 3, 0.37], [20249, 3, 3, 0.19], [13201, 10, 3, 1.07], [10988, 2, 3, 0.18], [8155, 25, 4, 0.3], [1851, 1, 3, 0.15], [9239, 25, 3, 0.22], [3430, 16, 3, 0.2], [23661, 2, 3, 0.4], [9083, 3, 4, 0.36], [10898, 1, 5, 0.19], [947, 1, 3, 0.29], [426, 15, 3, 0.3], [3599, 29, 3, 0.0], [4223, 4, 3, 0.4], [12925, 1, 3, 0.21], [11564, 80, 3, 0.39], [9239, 29, 3, 0.22], [23380, 25, 4, 0.18], [5076, 1, 4, 0.16], [23962, 3, 3, 0.2], [10174, 1, 3, 0.17], [2193, 1, 37, 0.13], [2538, 1, 3, 0.0], [3609, 1, 3, 0.66], [10413, 1, 3, 0.0], [4030, 29, 3, 0.32], [23992, 25, 3, 0.23], [426, 16, 3, 0.3], [13256, 25, 3, 0.21], [1116, 1, 3, 0.71], [13006, 3, 3, 0.13], [2100, 25, 4, 0.25], [1454, 3, 3, 0.17], [11150, 1, 3, 0.2], [23961, 3, 3, 0.21], [8361, 1, 3, 0.31], [11427, 1, 3, 0.18], [12534, 10, 9, 0.23], [13246, 29, 3, 0.0], [789, 2, 3, 0.16], [11185, 23, 3, 1.08], [10529, 29, 5, 0.41], [3389, 1, 3, 0.49], [14038, 3, 4, 0.28], [19879, 1, 3, 0.15], [2190, 1, 3, 0.17], [21698, 3, 3, 0.28], [12644, 1, 4, 0.0], [12648, 1, 4, 0.89], [2366, 3, 3, 0.28], [7250, 1, 4, 0.14], [9997, 29, 3, 0.38], [1407, 2, 3, 0.0], [13299, 1, 3, 0.3], [10146, 1, 4, 0.21], [24127, 3, 3, 0.24], [9209, 29, 3, 0.32], [9491, 1, 3, 0.22], [344, 25, 3, 0.28], [3985, 3, 8, 0.42], [22434, 3, 3, 0.28], [2365, 3, 4, 0.27], [2836, 3, 7, 0.23], [19330, 1, 3, 0.19], [23602, 10, 5, 0.18], [13256, 29, 3, 0.21], [19335, 2, 3, 0.18], [13114, 1, 4, 0.23], [1451, 7, 5, 0.15], [2099, 2, 3, 0.72], [19343, 2, 3, 0.2], [13257, 25, 3, 0.35], [13491, 7, 3, 0.45], [23040, 1, 3, 0.0], [80, 1, 3, 0.28], [19344, 2, 3, 0.2], [19376, 3, 3, 0.16], [13295, 3, 4, 0.29], [11902, 2, 3, 0.24], [3475, 2, 5, 0.2], [10149, 1, 3, 0.32], [23662, 2, 3, 0.39], [2821, 1, 3, 0.24], [473, 1, 3, 0.13], [23232, 3, 4, 0.22], [10538, 3, 4, 0.18], [3387, 1, 3, 0.41], [5647, 2, 3, 0.19], [12492, 3, 4, 0.22], [13041, 3, 4, 0.19], [13200, 10, 3, 1.06], [2934, 1, 3, 0.16], [12334, 2, 3, 0.2], [2695, 3, 4, 0.23], [3896, 25, 3, 0.32], [11212, 4, 3, 0.92], [2169, 3, 3, 0.23], [19332, 2, 3, 0.17], [382, 1, 3, 0.5], [19346, 2, 3, 0.2], [11773, 1, 3, 0.65], [10586, 3, 3, 0.2], [9621, 3, 4, 0.25], [23603, 10, 7, 0.15], [11565, 80, 4, 0.29], [11857, 1, 3, 0.34], [22437, 3, 6, 0.3], [3979, 3, 4, 0.42], [2367, 3, 4, 0.27], [19350, 2, 3, 0.2], [11178, 1, 3, 0.73], [11858, 1, 3, 0.34], [11634, 1, 3, 0.16], [19336, 2, 3, 0.16], [9288, 29, 3, 0.64], [20964, 3, 4, 0.58], [13398, 3, 3, 0.14], [334, 2, 3, 0.0], [3386, 1, 3, 0.58], [19361, 23, 3, 0.19], [2100, 2, 3, 0.25], [7007, 1, 3, 0.05], [2168, 3, 4, 0.43], [60, 1, 3, 0.28], [12609, 1, 3, 0.2], [5541, 1, 3, 0.17], [13274, 29, 3, 0.31], [23558, 3, 3, 0.27], [8923, 29, 5, 0.17], [5540, 1, 3, 0.17], [19366, 2, 3, 0.16], [1406, 2, 3, 0.23], [380, 2, 3, 0.62], [13273, 29, 3, 0.3], [21482, 7, 4, 0.42], [8756, 1, 4, 0.26], [21459, 7, 8, 0.5], [9207, 25, 3, 0.22], [2188, 2, 7, 0.18], [21481, 7, 3, 0.42], [2744, 3, 5, 0.26], [788, 2, 3, 0.16], [10181, 26, 4, 0.0], [22865, 7, 4, 0.35], [11269, 1, 22, 0.92], [13272, 29, 3, 0.31], [5110, 1, 3, 0.77], [10986, 2, 3, 0.21], [20937, 3, 3, 0.39], [21810, 1, 3, 0.0], [12241, 1, 3, 0.14], [19333, 2, 3, 0.17], [972, 1, 3, 0.31], [9153, 23, 4, 0.19], [2216, 1, 3, 0.43], [6556, 3, 3, 0.21], [12336, 2, 3, 0.21], [19968, 25, 3, 0.71], [23994, 29, 4, 0.28], [19969, 25, 3, 0.28], [204, 4, 3, 0.26], [23380, 29, 3, 0.18], [9208, 25, 4, 0.34], [23994, 25, 3, 0.28], [23600, 10, 3, 0.14], [9381, 1, 19, 0.22], [9182, 1, 3, 0.25], [13199, 23, 4, 1.08], [24130, 1, 3, 0.17], [8033, 2, 3, 0.18], [11942, 29, 4, 0.24], [12128, 1, 3, 0.15], [5453, 1, 5, 0.34], [1706, 25, 4, 0.38], [2417, 80, 3, 0.37], [22973, 1, 3, 0.19], [8284, 1, 3, 0.17], [512, 24, 3, 1.02], [942, 1, 3, 0.3], [8923, 25, 4, 0.17], [19374, 2, 3, 0.16], [12253, 3, 4, 0.14], [8155, 2, 3, 0.3], [8050, 2, 3, 0.2], [23246, 25, 3, 0.15], [1409, 16, 3, 0.23], [8907, 25, 5, 0.16], [22874, 3, 3, 0.28], [12508, 1, 4, 0.75], [6293, 1, 3, 0.14], [23546, 3, 4, 0.23], [13300, 3, 5, 0.22], [214, 1, 3, 0.18], [11213, 4, 3, 0.92], [11690, 1, 3, 0.16], [10609, 1, 6, 0.85], [8872, 1, 4, 0.21], [9489, 2, 3, 0.19], [12295, 4, 3, 0.39], [3987, 3, 5, 0.45], [10530, 29, 6, 0.4], [9530, 1, 6, 0.36], [8753, 1, 4, 0.26], [23248, 25, 3, 0.14], [22438, 3, 10, 0.2], [5939, 1, 5, 0.0], [22879, 3, 3, 0.28], [23599, 10, 5, 0.14], [8157, 29, 3, 0.58], [9382, 1, 4, 0.22], [10446, 1, 3, 0.17], [9803, 138, 3, 0.18], [19367, 2, 3, 0.17], [12040, 68, 3, 0.15], [11889, 2, 5, 1.08], [2362, 25, 3, 0.76], [11040, 1, 3, 0.34], [11322, 3, 3, 0.55], [10991, 1, 4, 0.94], [5654, 2, 3, 0.16], [21778, 2, 3, 0.0], [13024, 1, 3, 0.5], [21461, 7, 6, 0.5], [4926, 12, 3, 0.23], [8638, 3, 4, 0.29], [6023, 1, 3, 0.83], [9088, 25, 4, 0.23], [2287, 29, 3, 0.39], [4586, 1, 3, 0.18], [13007, 3, 3, 0.14], [23276, 1, 3, 0.37], [216, 4, 3, 0.28], [8157, 80, 3, 0.58], [19970, 25, 7, 0.25], [9148, 23, 4, 0.17], [10721, 29, 4, 0.23], [23538, 3, 4, 0.23], [9154, 23, 5, 0.18], [23235, 25, 4, 0.26], [2196, 2, 3, 0.0], [12028, 2, 3, 0.4], [5656, 2, 3, 0.17], [12630, 10, 3, 0.24], [22326, 1, 3, 0.18], [23541, 3, 3, 0.21], [5648, 2, 3, 0.16], [9910, 25, 5, 0.31], [4328, 1, 3, 0.16], [3558, 15, 3, 1.0], [12333, 2, 3, 0.2], [19338, 2, 3, 0.15], [21012, 2, 3, 0.33], [13397, 3, 3, 0.15], [6269, 23, 12, 0.0], [385, 1, 3, 0.49], [12577, 3, 3, 0.29], [5940, 1, 5, 0.0], [11328, 3, 3, 0.55], [5445, 23, 3, 0.28], [23234, 29, 3, 0.23], [1134, 1, 4, 0.64], [10720, 29, 4, 0.23], [11403, 1, 5, 0.0], [7886, 1, 3, 0.16], [22323, 1, 4, 0.17], [21319, 7, 6, 0.31], [9380, 1, 8, 0.22], [13025, 1, 3, 0.5], [21077, 10, 6, 0.21], [3388, 1, 3, 0.41], [11022, 3, 4, 0.55], [22871, 7, 4, 0.28], [10525, 1, 3, 0.0], [975, 3, 4, 0.15], [2418, 80, 3, 0.41], [10640, 3, 4, 0.26], [13015, 3, 3, 0.13], [21068, 10, 6, 0.21], [11687, 1, 3, 0.15], [23492, 3, 3, 0.15], [22876, 3, 3, 0.28], [3079, 3, 3, 0.27], [333, 2, 3, 0.0], [11916, 3, 5, 0.2], [8274, 1, 3, 0.19], [964, 1, 4, 0.18], [9113, 15, 3, 0.17], [23039, 1, 3, 0.0], [8895, 1, 3, 0.0], [12043, 1, 3, 0.26], [9122, 1, 3, 0.21], [11915, 1, 3, 0.19], [10987, 2, 3, 0.16], [23339, 3, 3, 0.16], [22408, 1, 3, 0.19], [9122, 15, 3, 0.21], [24126, 3, 3, 0.24], [1456, 3, 3, 0.29], [19340, 2, 3, 0.19], [23534, 3, 4, 0.3], [22407, 1, 3, 0.17], [10524, 80, 3, 0.4], [7204, 1, 3, 0.4], [21809, 1, 3, 0.0], [2188, 1, 3, 0.18], [23494, 3, 4, 0.15], [1451, 2, 4, 0.15], [22316, 1, 3, 0.3], [432, 1, 3, 0.31], [5446, 23, 3, 0.3], [5653, 2, 3, 0.16], [5538, 1, 3, 0.16], [11891, 3, 6, 0.32], [22038, 7, 5, 0.31], [2216, 15, 3, 0.43], [5020, 1, 3, 0.28], [11726, 29, 4, 0.2], [23491, 3, 3, 0.15], [23234, 25, 3, 0.23], [938, 1, 3, 0.0], [3904, 14, 3, 0.21], [23038, 1, 3, 0.0], [20191, 1, 5, 0.18], [14040, 1, 3, 0.16], [9129, 1, 3, 0.14], [11886, 1, 4, 0.27], [23493, 3, 3, 0.15], [1455, 3, 3, 0.25], [21808, 1, 3, 0.0], [6956, 25, 3, 0.33], [12294, 4, 3, 0.79], [8963, 1, 3, 0.27], [1803, 2, 3, 0.79], [6802, 3, 4, 0.3], [23231, 3, 3, 0.21], [19370, 2, 3, 0.16], [5649, 2, 3, 0.16], [2711, 3, 3, 0.19], [221, 4, 3, 0.39], [2505, 10, 5, 0.31], [3658, 1, 3, 0.32], [1988, 1, 3, 0.63], [21468, 7, 4, 0.28], [9138, 23, 3, 0.35], [20670, 1, 3, 0.3], [1163, 1, 3, 0.21], [7885, 1, 3, 0.16], [13008, 3, 3, 0.22], [21745, 2, 3, 0.0], [19360, 23, 4, 0.21], [11856, 1, 3, 0.34], [21088, 7, 5, 0.14], [6083, 3, 3, 0.19], [8363, 1, 3, 0.2], [9250, 3, 5, 0.29], [11325, 3, 3, 0.55], [948, 15, 3, 0.13], [10594, 3, 3, 0.3], [2269, 7, 6, 0.26], [4728, 1, 3, 0.22], [11636, 1, 3, 0.16], [2217, 16, 3, 0.48], [1260, 1, 3, 0.0], [6803, 3, 4, 0.3], [1457, 3, 3, 0.29], [192, 3, 7, 0.29], [12330, 2, 3, 0.19], [11485, 1, 5, 0.0], [590, 1, 3, 0.18], [1309, 23, 16, 0.11], [13, 1, 3, 0.28], [12921, 3, 5, 0.41], [1895, 1, 4, 0.0], [6628, 1, 4, 0.17], [186, 1, 3, 0.27], [23235, 29, 3, 0.26], [10170, 1, 3, 0.26], [23230, 3, 3, 0.22], [424, 1, 3, 0.0], [98, 1, 3, 0.0], [21463, 7, 3, 0.29], [21713, 1, 3, 0.18], [12239, 1, 3, 0.14], [9995, 29, 3, 0.18], [12433, 2, 3, 0.21], [10667, 3, 3, 0.2], [20249, 1, 4, 0.19], [21478, 7, 3, 0.34], [9154, 2, 3, 0.17], [440, 1, 3, 0.0], [6294, 1, 3, 0.17], [9148, 2, 3, 0.19], [19377, 3, 3, 0.15], [4033, 29, 4, 0.24], [11499, 1, 3, 0.0], [12623, 10, 3, 0.23], [19965, 29, 3, 0.2], [2271, 7, 5, 0.17], [2265, 7, 5, 0.38], [12637, 1, 3, 0.24], [19348, 2, 3, 0.2], [2717, 3, 3, 0.22], [2214, 1, 4, 0.22], [11450, 1, 3, 0.15], [13113, 1, 8, 0.23], [19968, 29, 3, 0.0], [2507, 2, 3, 0.11], [1511, 3, 4, 0.38], [23341, 3, 3, 0.16], [19985, 2, 3, 0.02], [3970, 2, 3, 0.82], [335, 1, 3, 0.37], [7202, 1, 3, 0.74], [12027, 2, 3, 0.4], [9910, 29, 4, 0.31], [23335, 14, 4, 0.36], [9065, 1, 3, 0.17], [790, 2, 4, 0.14], [23489, 3, 4, 0.9], [11163, 1, 24, 0.92], [10461, 3, 5, 0.82], [12638, 1, 3, 0.58], [22317, 1, 3, 0.3], [9530, 25, 3, 0.36], [8990, 29, 3, 0.39], [12257, 14, 3, 0.14], [22325, 1, 3, 0.2], [11510, 1, 3, 0.0], [11840, 1, 3, 0.22], [22440, 3, 4, 0.21], [13253, 29, 3, 0.22], [10668, 2, 3, 0.24], [12936, 3, 4, 0.4], [13489, 1, 3, 0.26], [11565, 29, 3, 0.29], [8927, 1, 3, 0.21], [19337, 2, 3, 0.19], [10717, 1, 3, 0.19], [9877, 16, 3, 0.3], [2537, 1, 3, 0.21], [1060, 1, 5, 0.0], [21474, 7, 4, 0.34], [9459, 1, 3, 0.3], [19365, 2, 3, 0.17], [19371, 2, 3, 0.17], [8907, 29, 3, 0.16], [8280, 1, 3, 0.0], [23533, 3, 4, 0.3], [8106, 1, 3, 0.28], [20920, 3, 4, 0.52], [3557, 15, 3, 0.23], [3476, 2, 3, 0.23], [22870, 7, 4, 0.28], [23529, 3, 4, 0.25], [12674, 1, 3, 0.23], [12513, 1, 3, 0.71], [12611, 1, 3, 0.19], [8254, 25, 3, 0.92], [22051, 10, 4, 0.44], [11897, 2, 3, 0.12], [19383, 1, 3, 0.26], [2050, 1, 6, 0.0], [3915, 15, 3, 0.15], [8023, 1, 3, 0.26], [6292, 1, 3, 0.17], [110, 1, 4, 0.0], [5435, 1, 3, 0.17], [1576, 1, 3, 0.36], [12167, 2, 3, 0.21], [13498, 1, 3, 0.0], [10906, 3, 4, 1.0], [23337, 3, 3, 0.9], [9963, 3, 3, 0.32], [2362, 29, 3, 0.0], [22569, 1, 3, 0.63], [22570, 1, 4, 0.38], [4068, 25, 3, 0.36], [9529, 1, 10, 0.19], [13270, 29, 3, 0.32], [858, 1, 3, 0.27], [19969, 29, 3, 0.28], [10716, 1, 7, 0.13], [22410, 1, 3, 0.21], [4967, 23, 5, 0.18], [19964, 29, 3, 0.35], [12062, 68, 3, 0.17], [976, 3, 3, 0.2], [10176, 29, 3, 0.34], [2214, 16, 3, 0.22], [23598, 10, 4, 0.13], [791, 2, 3, 0.15], [11885, 1, 3, 0.24], [12252, 3, 4, 0.14], [3549, 25, 4, 0.38], [1054, 2, 3, 0.17], [2225, 3, 3, 0.32], [217, 4, 3, 0.36], [9204, 1, 3, 0.0], [3495, 1, 3, 0.28], [20984, 1, 3, 0.86], [9208, 29, 3, 0.34], [10588, 3, 3, 0.23], [19369, 2, 3, 0.17], [12228, 2, 3, 0.74], [12645, 1, 5, 0.2], [10582, 3, 4, 0.31], [2404, 3, 3, 0.2], [22631, 3, 3, 0.19], [2203, 1, 4, 0.13], [11635, 1, 3, 0.15], [21082, 10, 6, 0.22], [3598, 15, 4, 0.15], [10428, 4, 3, 1.02], [12222, 3, 4, 0.18], [9956, 1, 4, 1.76], [4968, 23, 6, 0.27], [3994, 1, 3, 0.17], [12992, 1, 3, 0.25], [13014, 3, 3, 0.21], [9374, 5, 3, 0.84], [5652, 2, 4, 0.15], [10587, 3, 3, 0.21], [3071, 3, 3, 0.28], [12449, 1, 3, 0.21], [12434, 2, 3, 0.21], [13252, 29, 4, 0.25], [12220, 3, 3, 0.37], [2709, 17, 3, 0.31], [8156, 2, 3, 0.0], [13190, 2, 3, 0.16], [22364, 1, 3, 0.17], [11894, 2, 3, 0.24], [22566, 1, 3, 0.2], [12579, 3, 4, 0.28], [6627, 1, 4, 0.22], [12922, 3, 4, 0.27], [13012, 3, 3, 0.26], [2272, 7, 3, 0.16], [19684, 1, 3, 0.0], [8217, 25, 6, 0.22], [12612, 1, 3, 0.16], [9529, 25, 3, 0.19], [19372, 2, 3, 0.16], [2418, 29, 4, 0.41], [12258, 14, 3, 0.14], [94, 1, 3, 0.46], [962, 1, 4, 0.19], [19373, 2, 3, 0.18], [1447, 1, 3, 0.25], [12436, 2, 3, 0.25], [5406, 2, 3, 0.19], [2217, 15, 3, 0.49], [12578, 3, 4, 0.28], [12536, 2, 3, 0.31], [11641, 1, 3, 0.29], [4203, 1, 3, 0.24], [97, 1, 3, 0.0], [9996, 29, 3, 0.46], [13191, 2, 3, 0.17], [23238, 25, 3, 0.18], [9623, 3, 3, 0.22], [12256, 14, 3, 0.15], [3961, 1, 3, 0.2], [12026, 2, 4, 0.4], [72, 1, 3, 0.22], [20935, 3, 4, 0.4], [10175, 1, 3, 0.54], [19966, 29, 4, 0.2], [12935, 1, 3, 0.4], [9957, 1, 4, 1.69], [12661, 1, 3, 0.85], [5434, 1, 3, 0.28], [5109, 1, 3, 0.77], [10597, 3, 3, 0.28], [8279, 1, 3, 0.0], [12550</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 24, 0.65], [130, 1, 6, 0.17], [305, 2, 9, 0.34], [2778, 2, 11, 0.37], [144, 2, 7, 0.46], [205, 2, 6, 0.09], [8648, 2, 8, 0.41], [326, 2, 9, 0.18], [5493, 2, 8, 0.29], [615, 2, 9, 0.27], [8915, 2, 9, 0.0], [2327, 2, 8, 0.37], [151, 1, 9, 0.18], [8650, 2, 8, 0.41], [589, 2, 8, 0.0], [616, 2, 9, 0.27], [146, 2, 6, 0.45], [206, 2, 5, 0.09], [593, 2, 12, 0.28], [88, 10, 20, 0.3], [2049, 3, 11, 0.15], [1504, 2, 11, 0.49], [3893, 1, 6, 0.15], [2328, 2, 5, 0.37], [141, 2, 7, 0.3], [9507, 3, 4, 0.1], [7004, 1, 6, 0.2], [143, 2, 7, 0.25], [10, 2, 8, 0.19], [3889, 1, 5, 0.12], [3891, 1, 5, 0.14], [19925, 2, 6, 0.48], [145, 2, 6, 0.31], [248, 1, 5, 0.24], [378, 2, 5, 0.41], [159, 3, 8, 0.16], [2775, 2, 5, 0.37], [12224, 1, 6, 0.17], [8938, 2, 5, 0.0], [434, 2, 6, 0.18], [6936, 2, 11, 0.65], [5491, 2, 4, 0.28], [3840, 1, 8, 0.17], [7036, 1, 7, 0.48], [8649, 2, 7, 0.41], [2055, 3, 5, 0.05], [362, 2, 6, 0.29], [990, 2, 6, 0.31], [997, 2, 5, 0.0], [2050, 3, 6, 0.04], [10993, 2, 10, 0.22], [1446, 2, 4, 0.0], [624, 2, 6, 0.28], [11685, 2, 13, 0.52], [996, 2, 5, 0.0], [75, 2, 6, 0.0], [62, 3, 10, 0.4], [2057, 3, 6, 0.04], [61, 3, 5, 0.24], [2054, 3, 6, 0.04], [2497, 2, 6, 0.49], [2776, 2, 5, 0.37], [998, 2, 4, 0.0], [10574, 3, 8, 0.17], [8853, 2, 8, 0.65], [957, 2, 5, 0.24], [8939, 2, 3, 0.0], [13028, 3, 6, 0.44], [8672, 2, 9, 0.36], [583, 2, 4, 0.16], [5208, 3, 8, 0.13], [7084, 3, 3, 0.22], [1006, 2, 5, 0.22], [7005, 1, 3, 0.2], [59, 3, 8, 0.1], [346, 3, 4, 0.26], [1429, 2, 3, 0.0], [12269, 2, 5, 0.28], [9760, 29, 7, 0.0], [1007, 2, 8, 0.12], [12225, 1, 3, 0.17], [11683, 2, 10, 0.47], [5165, 1, 11, 0.21], [12870, 1, 6, 0.5], [20927, 1, 3, 0.2], [361, 2, 5, 0.3], [11681, 2, 10, 0.56], [2991, 3, 4, 0.42], [11737, 2, 5, 0.17], [7885, 4, 4, 0.15], [3, 2, 7, 0.0], [140, 2, 5, 0.17], [972, 3, 6, 0.29], [523, 2, 3, 0.3], [956, 2, 4, 0.2], [11811, 1, 5, 0.23], [94, 4, 3, 0.39], [5946, 1, 3, 0.18], [6497, 1, 7, 0.0], [214, 3, 11, 0.18], [1126, 2, 5, 0.21], [33, 1, 3, 0.15], [2912, 1, 11, 0.2], [411, 2, 3, 0.09], [22179, 1, 3, 0.27], [417, 2, 5, 0.3], [1492, 1, 5, 0.0], [76, 2, 3, 0.25], [950, 1, 8, 0.33], [5165, 2, 12, 0.2], [995, 2, 3, 0.22], [12271, 2, 4, 0.29], [142, 2, 5, 0.3], [7567, 3, 3, 0.27], [435, 2, 3, 0.24], [410, 1, 3, 0.33], [336, 15, 3, 0.2], [1413, 15, 3, 0.21], [11739, 2, 3, 0.29], [1886, 2, 7, 1.13], [96, 11, 19, 0.41], [21793, 1, 8, 0.89], [346, 1, 5, 0.25], [2774, 2, 5, 0.74], [9784, 1, 3, 0.29], [74, 1, 3, 0.55], [22316, 3, 5, 0.3], [7886, 4, 4, 0.17], [11404, 2, 6, 0.18], [14037, 3, 6, 0.13], [9372, 1, 8, 0.0], [35, 1, 3, 0.23], [11490, 1, 3, 0.38], [21704, 3, 18, 0.19], [11767, 1, 3, 0.0], [6158, 2, 6, 0.21], [11953, 1, 6, 0.39], [21798, 1, 4, 0.22], [5209, 3, 5, 0.13], [13928, 1, 3, 0.3], [20252, 2, 3, 0.34], [37, 1, 3, 0.22], [12229, 2, 4, 0.24], [9081, 3, 11, 0.39], [2912, 2, 10, 0.2], [10149, 3, 20, 0.33], [10631, 2, 5, 0.49], [7887, 4, 3, 0.19], [1163, 3, 5, 0.15], [955, 2, 11, 0.47], [152, 21, 3, 0.27], [159, 1, 8, 0.14], [8898, 3, 5, 0.8], [161, 3, 8, 0.34], [432, 3, 4, 0.23], [11808, 1, 4, 0.45], [9491, 21, 11, 0.22], [13962, 1, 3, 0.26], [1005, 2, 3, 0.17], [12721, 2, 6, 0.38], [3670, 2, 5, 0.51], [34, 1, 3, 0.23], [11769, 1, 3, 0.0], [3980, 4, 5, 0.35], [11179, 1, 4, 0.24], [11489, 1, 3, 0.38], [39, 1, 3, 0.23], [1124, 2, 7, 0.28], [5490, 2, 3, 0.23], [345, 3, 4, 0.4], [2424, 80, 5, 0.45], [83, 2, 3, 0.2], [12212, 29, 5, 0.24], [12369, 3, 10, 0.68], [1656, 2, 4, 0.13], [11772, 1, 7, 0.56], [10407, 10, 9, 0.9], [22317, 3, 5, 0.3], [9690, 1, 3, 0.33], [4253, 1, 4, 0.33], [2104, 3, 9, 0.32], [11770, 1, 6, 0.1], [8943, 3, 3, 0.28], [13964, 1, 3, 0.25], [8944, 3, 3, 0.18], [21712, 3, 16, 0.25], [10408, 10, 8, 0.27], [201, 3, 4, 0.4], [972, 1, 3, 0.28], [6496, 1, 4, 0.17], [413, 1, 3, 0.32], [105, 3, 3, 0.06], [3495, 3, 21, 0.28], [13967, 1, 3, 0.25], [11952, 1, 5, 0.41], [229, 1, 3, 0.38], [38, 1, 3, 0.22], [8676, 2, 5, 0.36], [71, 15, 3, 0.16], [11085, 2, 6, 0.23], [8635, 3, 4, 0.34], [335, 3, 11, 0.21], [11039, 2, 5, 0.48], [20256, 2, 3, 0.31], [412, 1, 3, 0.32], [13034, 3, 5, 0.54], [22247, 2, 5, 0.38], [10410, 10, 7, 0.9], [8274, 3, 4, 0.34], [307, 2, 6, 0.34], [10411, 10, 8, 0.28], [6805, 1, 4, 0.28], [436, 2, 3, 0.22], [440, 3, 3, 1.03], [8120, 3, 3, 0.17], [584, 2, 3, 0.26], [11812, 1, 3, 0.21], [418, 2, 3, 0.29], [82, 2, 3, 0.2], [1414, 15, 3, 0.21], [8286, 2, 6, 0.17], [159, 16, 3, 0.14], [270, 3, 3, 0.25], [3982, 3, 12, 0.42], [114, 3, 3, 0.06], [1654, 2, 4, 0.13], [1339, 3, 12, 0.18], [389, 4, 3, 0.36], [20498, 3, 5, 0.36], [21269, 3, 4, 0.99], [5584, 3, 3, 0.85], [3981, 3, 14, 0.43], [8121, 3, 4, 0.14], [10936, 2, 3, 0.51], [9, 1, 3, 0.19], [2805, 137, 8, 0.64], [1895, 3, 4, 0.42], [1274, 1, 4, 0.34], [12223, 1, 3, 0.26], [2423, 80, 4, 0.36], [2424, 29, 5, 0.45], [590, 15, 3, 0.18], [11504, 2, 3, 0.29], [9691, 1, 3, 0.33], [10388, 2, 3, 0.44], [110, 4, 3, 0.35], [19931, 1, 4, 0.22], [12964, 3, 5, 0.24], [7558, 3, 3, 0.1], [6494, 1, 3, 0.0], [20649, 1, 3, 0.33], [14041, 3, 4, 0.19], [2436, 4, 3, 1.46], [11116, 1, 4, 0.15], [3429, 15, 3, 0.19], [3975, 4, 5, 0.35], [12764, 2, 6, 0.28], [788, 2, 3, 0.14], [21060, 1, 3, 0.26], [98, 11, 17, 0.0], [11236, 2, 5, 0.24], [3577, 25, 5, 0.26], [79, 1, 3, 0.22], [286, 3, 3, 0.38], [5005, 3, 8, 0.22], [11235, 2, 5, 0.66], [11814, 1, 3, 0.21], [3892, 1, 3, 0.28], [5076, 1, 7, 0.45], [9082, 3, 24, 0.48], [1490, 1, 7, 0.4], [823, 1, 5, 0.4], [3576, 25, 4, 0.3], [11089, 1, 4, 0.43], [958, 2, 3, 0.26], [11510, 3, 5, 0.3], [789, 2, 4, 0.14], [12357, 3, 4, 0.62], [126, 2, 3, 0.19], [84, 2, 3, 0.22], [21686, 3, 6, 0.63], [11813, 1, 3, 0.3], [11954, 1, 3, 0.0], [3900, 3, 3, 0.18], [12720, 2, 3, 0.38], [36, 1, 3, 0.23], [20486, 3, 4, 0.52], [12270, 2, 3, 0.29], [414, 1, 3, 0.32], [9065, 2, 4, 0.13], [3674, 2, 4, 0.39], [9126, 1, 5, 0.19], [8675, 2, 5, 0.36], [202, 2, 3, 0.11], [2331, 1, 3, 0.34], [13893, 2, 4, 0.46], [1548, 1, 3, 0.3], [10386, 2, 3, 0.43], [12355, 3, 4, 0.66], [97, 11, 18, 0.24], [13110, 3, 5, 0.68], [10939, 2, 3, 0.51], [45, 2, 5, 0.94], [7708, 2, 6, 0.29], [21683, 3, 4, 0.4], [10940, 2, 3, 0.51], [415, 1, 3, 0.32], [7007, 1, 3, 0.2], [3576, 29, 5, 0.3], [1523, 1, 3, 0.52], [11087, 2, 4, 0.23], [21713, 3, 10, 0.18], [8283, 2, 4, 0.18], [8659, 1, 4, 0.09], [8356, 1, 3, 0.03], [10941, 2, 3, 0.51], [11671, 1, 7, 0.33], [13928, 2, 5, 0.3], [10406, 10, 8, 0.33], [10633, 2, 3, 0.49], [9069, 1, 3, 0.62], [21059, 1, 3, 0.26], [8945, 3, 4, 0.86], [1661, 3, 3, 0.27], [5005, 1, 5, 0.22], [10093, 3, 12, 0.44], [3577, 29, 4, 0.26], [10172, 3, 7, 0.21], [2438, 2, 6, 0.22], [12358, 3, 4, 0.61], [4176, 4, 5, 0.35], [3456, 3, 3, 0.22], [3478, 2, 5, 0.57], [8673, 2, 3, 0.43], [12338, 29, 4, 0.2], [11150, 2, 6, 0.17], [12362, 3, 4, 0.66], [11158, 1, 10, 0.41], [1699, 3, 3, 0.27], [2878, 1, 3, 0.46], [11687, 2, 4, 0.11], [3575, 25, 4, 0.31], [8897, 3, 4, 0.8], [2108, 3, 7, 0.18], [9204, 3, 4, 0.08], [11160, 1, 4, 0.4], [399, 24, 3, 0.49], [437, 3, 3, 0.25], [70, 16, 3, 0.2], [1243, 2, 5, 0.44], [9827, 3, 3, 0.28], [10409, 10, 8, 0.32], [6097, 29, 4, 0.44], [6097, 80, 3, 0.45], [1667, 3, 3, 0.27], [10514, 3, 4, 0.29], [93, 11, 15, 0.37], [8285, 2, 4, 0.2], [13433, 2, 5, 0.36], [20498, 1, 3, 0.0], [13244, 1, 10, 0.19], [1050, 2, 3, 0.16], [19583, 3, 4, 0.4], [491, 10, 8, 0.41], [1049, 2, 3, 0.16], [3894, 1, 3, 0.35], [7120, 3, 3, 0.23], [11088, 2, 4, 0.23], [6952, 1, 5, 0.42], [1277, 1, 5, 0.36], [21706, 3, 13, 0.16], [2109, 3, 10, 0.22], [12241, 3, 3, 0.14], [11426, 25, 4, 0.28], [19971, 3, 4, 0.3], [4001, 3, 9, 0.42], [12979, 25, 10, 0.29], [11674, 1, 3, 0.0], [2049, 1, 3, 0.15], [3337, 1, 3, 0.31], [1300, 3, 3, 0.36], [10148, 1, 5, 0.13], [947, 15, 3, 0.26], [856, 1, 3, 0.21], [13965, 1, 3, 0.24], [12356, 3, 4, 0.68], [11936, 2, 3, 0.51], [9787, 1, 3, 0.29], [12526, 2, 4, 0.11], [1309, 1, 3, 0.28], [10937, 2, 3, 0.51], [7182, 1, 3, 0.33], [10537, 3, 4, 0.18], [8677, 3, 4, 0.53], [7360, 3, 3, 0.23], [2423, 29, 4, 0.36], [7705, 2, 4, 0.29], [5007, 3, 6, 0.22], [22318, 3, 4, 0.41], [11738, 2, 3, 0.29], [2859, 15, 3, 0.17], [12501, 1, 3, 0.0], [11689, 2, 4, 0.11], [942, 3, 3, 0.29], [12373, 1, 6, 0.1], [11183, 1, 3, 0.62], [10536, 3, 5, 0.0], [9785, 1, 3, 0.29], [12417, 3, 4, 0.35], [9971, 2, 3, 0.34], [13263, 29, 3, 0.33], [3048, 3, 4, 0.57], [8600, 1, 3, 0.2], [12361, 3, 4, 0.63], [973, 3, 5, 0.25], [2738, 3, 3, 0.44], [11150, 1, 3, 0.17], [10632, 2, 3, 0.49], [66, 15, 3, 0.19], [21687, 3, 4, 0.63], [12653, 1, 7, 0.19], [11690, 2, 4, 0.12], [11793, 2, 5, 0.14], [12368, 3, 4, 0.64], [308, 1, 4, 0.66], [2336, 3, 6, 0.24], [186, 3, 10, 0.3], [9854, 1, 3, 0.51], [9124, 1, 4, 0.19], [490, 1, 9, 0.21], [11084, 2, 4, 0.23], [5435, 1, 3, 0.31], [7122, 3, 3, 0.23], [6864, 1, 3, 0.28], [147, 1, 3, 0.39], [1080, 3, 3, 1.31], [10721, 29, 5, 0.19], [10385, 2, 3, 0.2], [11161, 1, 5, 0.34], [7119, 3, 3, 0.23], [8104, 1, 4, 0.0], [1519, 3, 14, 0.18], [974, 3, 4, 0.23], [11182, 1, 3, 0.71], [9358, 1, 4, 0.0], [1413, 16, 3, 0.21], [20556, 2, 3, 0.29], [11844, 2, 4, 0.47], [3723, 25, 3, 0.44], [5434, 1, 3, 0.28], [3983, 4, 3, 0.35], [12053, 2, 5, 0.38], [9797, 3, 8, 0.33], [10630, 2, 3, 0.49], [13035, 3, 5, 0.52], [11234, 2, 5, 0.29], [470, 1, 3, 0.11], [19924, 2, 7, 0.44], [9783, 1, 3, 0.31], [289, 3, 3, 0.35], [3334, 5, 4, 0.5], [9786, 1, 3, 0.29], [3575, 29, 4, 0.32], [2108, 1, 3, 0.18], [4354, 1, 3, 0.46], [2422, 80, 4, 0.41], [10413, 10, 5, 0.49], [12646, 1, 4, 0.48], [19581, 3, 4, 0.4], [9796, 3, 8, 0.33], [10408, 1, 4, 0.26], [2991, 1, 5, 0.42], [409, 1, 3, 0.24], [2322, 2, 3, 0.1], [21705, 3, 9, 0.41], [23961, 3, 3, 0.28], [948, 15, 3, 0.17], [11717, 3, 4, 0.85], [3673, 2, 3, 0.52], [9965, 2, 3, 0.34], [18964, 1, 3, 0.28], [949, 10, 6, 0.07], [10780, 10, 4, 0.83], [3430, 15, 3, 0.3], [10414, 10, 6, 0.2], [4232, 80, 4, 0.27], [416, 1, 3, 0.32], [8927, 10, 9, 0.15], [632, 11, 17, 0.0], [13023, 3, 5, 0.35], [11184, 1, 3, 0.61], [12010, 3, 3, 0.0], [13264, 29, 4, 0.31], [21697, 3, 3, 0.28], [8284, 2, 4, 0.19], [11719, 3, 6, 1.07], [10407, 1, 3, 0.0], [2854, 21, 9, 0.23], [7573, 1, 6, 0.32], [3059, 3, 3, 0.46], [439, 1, 3, 0.32], [3976, 3, 12, 0.43], [4076, 3, 3, 0.46], [22570, 1, 4, 0.43], [9828, 3, 3, 0.28], [11586, 1, 3, 0.4], [4175, 3, 11, 0.43], [13260, 29, 3, 0.35], [8674, 2, 3, 0.36], [3979, 3, 10, 0.42], [2703, 3, 3, 0.33], [10825, 21, 10, 0.31], [11491, 2, 3, 0.29], [10124, 1, 8, 0.27], [11485, 24, 3, 0.6], [6269, 23, 11, 0.26], [5585, 3, 3, 0.83], [10720, 29, 6, 0.21], [12417, 1, 3, 0.36], [12363, 3, 4, 0.62], [10581, 3, 5, 0.61], [1575, 1, 3, 0.31], [19047, 3, 3, 0.29], [12059, 3, 5, 0.41], [12661, 1, 3, 1.11], [1668, 1, 3, 0.3], [11288, 2, 3, 1.12], [11887, 2, 4, 0.24], [6728, 1, 3, 0.26], [12367, 3, 4, 0.63], [1087, 1, 3, 0.29], [12647, 1, 3, 0.48], [11425, 25, 4, 0.26], [2528, 29, 3, 0.24], [11930, 1, 3, 0.6], [1744, 1, 3, 0.23], [10411, 1, 3, 0.27], [20486, 1, 3, 0.0], [991, 2, 3, 0.28], [19972, 3, 4, 0.3], [66, 16, 3, 0.19], [11625, 29, 3, 0.2], [10410, 1, 3, 0.0], [10254, 1, 3, 0.48], [382, 1, 5, 0.5], [11081, 3, 3, 0.25], [10516, 3, 4, 0.29], [21699, 3, 7, 0.29], [12235, 3, 3, 0.63], [3934, 5, 14, 0.21], [10720, 80, 3, 0.21], [10387, 2, 3, 0.44], [10669, 3, 3, 0.26], [4372, 10, 8, 0.32], [7457, 3, 6, 0.21], [21683, 1, 3, 0.0], [9945, 3, 5, 0.3], [9186, 29, 3, 0.2], [13107, 3, 4, 1.04], [9507, 1, 3, 0.1], [424, 11, 8, 0.5], [7704, 2, 4, 0.29], [22968, 1, 3, 0.22], [12418, 3, 5, 0.35], [12722, 2, 4, 0.38], [71, 16, 3, 0.16], [12662, 1, 3, 0.2], [21789, 2, 4, 0.18], [2879, 1, 3, 0.24], [13033, 3, 4, 0.54], [6266, 23, 10, 0.26], [9964, 2, 3, 0.34], [2368, 3, 4, 0.31], [590, 16, 3, 0.18], [11180, 1, 3, 0.24], [1413, 1, 3, 0.21], [8756, 2, 6, 0.25], [790, 2, 3, 0.14], [11426, 29, 3, 0.28], [12058, 3, 3, 0.41], [13243, 1, 8, 0.2], [10668, 3, 3, 0.28], [11164, 1, 6, 0.38], [3341, 3, 3, 0.52], [11967, 1, 3, 0.19], [10461, 3, 4, 0.27], [5769, 3, 8, 0.0], [12923, 1, 3, 0.15], [21781, 2, 3, 0.16], [161, 1, 3, 0.34], [5343, 15, 3, 0.26], [3910, 7, 8, 0.33], [3909, 7, 9, 0.32], [5128, 1, 3, 0.24], [3338, 1, 3, 0.21], [11633, 1, 4, 0.18], [107, 7, 6, 0.31], [10521, 3, 4, 0.29], [13498, 3, 4, 0.62], [12621, 1, 3, 0.36], [2109, 1, 5, 0.22], [12304, 1, 4, 0.47], [11718, 3, 4, 0.85], [560, 1, 3, 0.53], [13258, 29, 8, 0.36], [12924, 1, 3, 0.16], [148, 1, 3, 0.39], [2103, 15, 3, 0.2], [12236, 3, 5, 0.15], [23611, 3, 4, 0.37], [1801, 1, 3, 0.19], [10181, 26, 9, 0.0], [21703, 3, 3, 0.52], [9494, 1, 5, 0.09], [1604, 68, 3, 0.31], [4203, 1, 3, 0.21], [944, 15, 3, 0.18], [20650, 1, 3, 0.36], [3047, 3, 3, 0.54], [1091, 1, 3, 0.19], [10540, 3, 3, 0.18], [13104, 3, 4, 1.04], [938, 3, 4, 0.29], [3391, 1, 3, 0.5], [22330, 3, 3, 0.44], [220, 4, 3, 0.55], [20555, 2, 3, 0.3], [1301, 3, 3, 0.44], [215, 4, 3, 0.52], [7724, 3, 3, 0.55], [9068, 1, 3, 0.64], [12234, 3, 3, 0.63], [6359, 10, 9, 0.17], [2422, 29, 3, 0.4], [9841, 25, 9, 0.2], [13259, 29, 9, 0.0], [10721, 80, 4, 0.19], [21809, 1, 3, 0.0], [336, 16, 3, 0.2], [21700, 3, 3, 0.53], [1620, 1, 3, 0.21], [13244, 2, 7, 0.18], [2335, 3, 3, 0.26], [1185, 3, 3, 0.53], [11618, 1, 3, 0.29], [13198, 29, 3, 0.31], [21807, 1, 3, 0.0], [11427, 2, 4, 0.15], [858, 1, 3, 0.24], [5939, 3, 3, 0.22], [1339, 1, 3, 0.18], [13274, 29, 5, 0.35], [11306, 2, 3, 0.62], [5020, 23, 12, 0.24], [11450, 2, 3, 0.16], [20969, 3, 5, 0.58], [11885, 2, 4, 0.24], [12365, 3, 4, 0.51], [1622, 1, 15, 0.13], [5730, 2, 3, 0.15], [216, 4, 3, 0.23], [19883, 1, 3, 0.16], [12360, 3, 4, 0.61], [3442, 29, 7, 0.35], [12055, 2, 5, 0.38], [12791, 2, 7, 0.21], [11587, 1, 4, 0.46], [11726, 29, 3, 0.2], [10816, 3, 4, 1.0], [292, 3, 4, 0.35], [3722, 25, 3, 0.19], [21783, 2, 3, 0.17], [2821, 3, 8, 0.33], [12979, 1, 3, 0.29], [12057, 2, 4, 0.38], [1414, 16, 3, 0.21], [21745, 2, 3, 0.0], [9840, 25, 7, 0.2], [13108, 3, 5, 1.07], [563, 2, 3, 0.16], [1853, 1, 3, 0.26], [7250, 3, 3, 0.16], [12594, 7, 3, 0.14], [3475, 2, 3, 0.3], [8896, 1, 3, 0.53], [8753, 2, 5, 0.25], [11794, 2, 3, 0.15], [1125, 2, 5, 0.0], [9355, 1, 3, 0.27], [11495, 1, 3, 0.28], [11931, 1, 3, 0.6], [12430, 3, 4, 0.35], [107, 2, 5, 0.31], [791, 2, 3, 0.15], [1406, 25, 3, 0.22], [3143, 3, 3, 0.44], [12614, 1, 3, 0.27], [6267, 23, 9, 0.26], [23032, 3, 5, 0.3], [1024, 1, 3, 0.17], [13266, 29, 4, 0.3], [9149, 23, 4, 0.17], [1683, 1, 3, 0.26], [5340, 23, 6, 0.2], [3230, 1, 3, 0.25], [3278, 29, 5, 0.38], [12054, 2, 3, 0.38], [12764, 1, 3, 0.27], [8636, 3, 6, 0.64], [963, 3, 3, 0.35], [12497, 3, 4, 0.26], [11157, 11, 6, 0.17], [21691, 3, 4, 0.68], [12706, 23, 8, 0.0], [21476, 7, 5, 0.44], [21468, 7, 4, 0.28], [247, 1, 3, 0.3], [209, 3, 3, 0.43], [11181, 1, 3, 0.51], [95, 3, 23, 0.96], [11402, 1, 3, 0.01], [8926, 1, 4, 0.0], [21694, 3, 5, 0.68], [23960, 3, 3, 0.34], [22920, 3, 4, 0.35], [11304, 2, 3, 1.12], [11425, 29, 3, 0.27], [12912, 3, 3, 0.16], [7703, 2, 4, 0.29], [8945, 1, 5, 0.0], [471, 1, 3, 0.16], [4032, 29, 5, 0.36], [10397, 3, 3, 0.35], [12663, 1, 3, 0.15], [7457, 1, 3, 0.21], [5341, 15, 3, 0.28], [10719, 80, 4, 0.26], [1059, 3, 3, 0.53], [13273, 29, 3, 0.31], [10609, 1, 5, 0.4], [70, 1, 3, 0.2], [13293, 3, 4, 0.36], [12656, 1, 3, 0.37], [5734, 2, 3, 0.15], [21463, 7, 4, 0.29], [10459, 3, 4, 0.27], [12489, 1, 3, 0.12], [3610, 24, 3, 0.57], [936, 3, 4, 0.12], [5343, 1, 3, 0.27], [5976, 1, 3, 0.09], [12369, 1, 5, 0.0], [332, 2, 3, 0.11], [11527, 10, 6, 0.15], [10147, 1, 4, 0.17], [21692, 3, 4, 0.51], [10272, 3, 4, 0.37], [5453, 1, 3, 0.37], [1139, 3, 3, 0.16], [1851, 1, 3, 0.14], [13491, 7, 3, 0.45], [7707, 2, 3, 0.29], [13106, 3, 4, 1.03], [1703, 2, 7, 0.58], [3988, 4, 3, 0.39], [21317, 3, 3, 0.17], [3088, 1, 3, 0.16], [11494, 1, 3, 0.31], [2369, 3, 4, 0.39], [4030, 29, 3, 0.17], [10460, 3, 4, 0.27], [4586, 10, 14, 0.2], [14017, 3, 3, 0.0], [2104, 1, 3, 0.31], [9138, 2, 3, 0.33], [11886, 2, 4, 0.27], [13324, 3, 5, 0.21], [20956, 7, 5, 0.31], [5342, 23, 6, 0.19], [8059, 3, 4, 0.45], [8557, 3, 3, 0.35], [10994, 2, 4, 0.23], [11159, 1, 7, 0.39], [5343, 16, 3, 0.27], [11710, 3, 5, 0.22], [8599, 1, 3, 0.25], [11435, 2, 3, 0.18], [10273, 3, 5, 0.29], [12913, 3, 3, 0.15], [1120, 3, 6, 0.18], [2695, 3, 7, 0.25], [23276, 3, 4, 0.39], [11644, 1, 3, 0.32], [19582, 3, 4, 0.4], [3899, 3, 3, 0.24], [19687, 1, 3, 0.34], [5152, 2, 4, 0.36], [4327, 1, 3, 0.13], [6098, 29, 3, 0.35], [2538, 1, 3, 0.0], [13105, 3, 4, 1.03], [3257, 4, 3, 0.23], [23031, 3, 4, 0.31], [6489, 11, 16, 0.51], [3986, 4, 3, 0.35], [2985, 3, 3, 0.3], [23040, 10, 5, 0.93], [407, 3, 4, 0.53], [13025, 3, 4, 0.49], [10815, 3, 5, 1.07], [3984, 3, 9, 0.43], [10639, 2, 3, 0.49], [13270, 29, 6, 0.33], [10412, 10, 5, 0.2], [2537, 1, 3, 0.2], [975, 3, 3, 0.26], [12871, 1, 5, 0.12], [2492, 1, 3, 0.27], [21810, 1, 3, 0.0], [3896, 29, 4, 0.33], [11092, 1, 3, 0.15], [10462, 3, 4, 0.27], [688, 3, 3, 0.21], [9967, 2, 3, 0.34], [11080, 3, 3, 0.78], [22877, 7, 3, 0.29], [2013, 2, 4, 0.54], [6098, 80, 3, 0.36], [21316, 3, 3, 0.17], [7629, 1, 3, 0.33], [3664, 5, 8, 0.27], [3104, 1, 3, 0.49], [9491, 1, 3, 0.19], [10172, 1, 5, 0.21], [448, 1, 3, 0.24], [10531, 14, 8, 0.25], [10455, 29, 3, 0.0], [5940, 3, 3, 0.21], [405, 3, 4, 0.53], [1515, 1, 3, 0.15], [12980, 25, 8, 0.21], [13024, 3, 5, 0.48], [11773, 1, 3, 0.22], [12935, 3, 4, 0.39], [21480, 7, 4, 0.5], [11156, 11, 5, 0.16], [964, 15, 3, 0.17], [12496, 3, 3, 0.26], [3994, 1, 3, 0.31], [13243, 2, 7, 0.2], [8234, 1, 3, 0.35], [5452, 1, 3, 0.24], [7324, 1, 3, 0.22], [11961, 1, 3, 0.21], [1701, 2, 4, 0.44], [22922, 3, 4, 0.4], [2105, 3, 8, 0.24], [2161, 1, 3, 0.26], [12508, 1, 3, 0.09], [11104, 3, 3, 0.66], [10176, 29, 3, 0.2], [3961, 1, 3, 0.31], [8637, 3, 6, 0.69], [19331, 2, 3, 0.18], [1409, 15, 3, 0.18], [9613, 1, 3, 0.25], [22921, 3, 3, 0.4], [10083, 23, 7, 0.22], [12654, 1, 3, 0.37], [3392, 1, 3, 0.5], [19878, 1, 3, 0.16], [13294, 3, 3, 0.36], [11152, 11, 5, 0.18], [2438, 1, 3, 0.23], [23028, 3, 4, 0.31], [1648, 1, 3, 0.52], [14, 1, 3, 0.18], [1743, 1, 3, 0.23], [12700, 3, 4, 0.68], [66, 1, 4, 0.19], [11775, 1, 3, 0.23], [109, 4, 3, 0.33], [9829, 3, 3, 0.19], [21689, 3, 4, 0.68], [1742, 1, 3, 0.25], [12240, 14, 3, 0.13], [21474, 7, 3, 0.34], [1052, 2, 3, 0.25], [10525, 3, 4, 0.29], [11410, 29, 4, 0.2], [11420, 3, 3, 0.25], [515, 24, 3, 0.35], [4329, 3, 5, 0.2], [13109, 3, 5, 1.05], [8089, 1, 5, 0.41], [1120, 1, 4, 0.19], [8754, 2, 6, 0.22], [14018, 3, 3, 0.0], [3049, 3, 3, 0.49], [60, 3, 7, 0.16], [3915, 16, 3, 0.15], [1432, 25, 3, 0.0], [6360, 10, 7, 0.17], [11846, 3, 3, 0.29], [10719, 29, 3, 0.26], [12239, 3, 3, 0.13], [12791, 1, 4, 0.22], [13325, 3, 3, 0.25], [524, 1, 3, 0.32], [21709, 3, 9, 0.22], [8968, 1, 3, 0.0], [13258, 25, 4, 0.36], [3340, 3, 3, 0.68], [20259, 2, 3, 0.25], [13036, 3, 4, 0.58], [5812, 3, 4, 0.2], [7191, 1, 3, 0.55], [3386, 1, 3, 0.53], [3987, 3, 7, 0.45], [10670, 3, 3, 0.24], [10906, 3, 11, 0.19], [7362, 3, 3, 0.21], [11154, 11, 7, 0.16], [3016, 68, 3, 0.48], [1406, 2, 3, 0.22], [8355, 1, 3, 0.03], [392, 4, 3, 0.36], [3985, 3, 9, 0.42], [20255, 2, 3, 0.38], [11848, 1, 3, 0.24], [9409, 29, 5, 0.0], [5646, 2, 3, 0.22], [12249, 14, 3, 0.14], [11528, 10, 6, 0.15], [22571, 1, 3, 0.09], [20966, 3, 4, 0.58], [3258, 7, 6, 0.34], [4222, 4, 3, 0.47], [3896, 25, 3, 0.32], [11722, 3, 3, 1.14], [12917, 3, 3, 0.16], [19583, 1, 3, 0.0], [10580, 3, 4, 0.86], [10275, 3, 3, 0.24], [72, 1, 3, 0.28], [11721, 3, 4, 1.07], [4232, 29, 3, 0.27], [9374, 5, 6, 0.46], [11085, 1, 3, 0.23], [10406, 1, 3, 0.31], [11634, 1, 3, 0.16], [6575, 3, 3, 0.46], [11529, 10, 6, 0.15], [7358, 3, 3, 0.25], [12637, 1, 3, 0.29], [23248, 25, 3, 0.16], [3021, 68, 3, 0.22], [1514, 1, 3, 0.17], [7706, 2, 3, 0.29], [1511, 3, 5, 0.16], [24130, 1, 4, 0.17], [10278, 3, 3, 0.57], [3915, 15, 3, 0.15], [6035, 23, 6, 0.32], [7361, 3, 3, 0.25], [21481, 7, 3, 0.48], [8023, 1, 3, 0.26], [13272, 29, 4, 0.32], [2323, 2, 3, 0.1], [7702, 2, 6, 0.29], [12613, 1, 3, 0.29], [12648, 1, 4, 0.23], [4223, 4, 3, 0.24], [948, 16, 3, 0.17], [1432, 2, 3, 0.0], [8085, 1, 3, 0.03], [12262, 3, 4, 0.13], [20196, 2, 3, 0.47], [1051, 2, 3, 0.25], [10574, 1, 3, 0.17], [10507, 2, 3, 0.16], [21315, 3, 3, 0.17], [1053, 729, 3, 0.14], [21806, 1, 3, 0.0], [952, 4, 3, 0.26], [3012, 1, 3, 0.25], [1407, 25, 3, 0.01], [2111, 3, 5, 0.19], [2709, 15, 3, 0.28], [13259, 25, 4, 0.31], [3024, 3, 3, 0.35], [8943, 1, 3, 0.28], [1414, 1, 3, 0.21], [11055, 3, 3, 1.1], [354, 2, 3, 0.11], [11677, 1, 3, 0.98], [9820, 3, 3, 0.62], [22125, 2, 3, 0.16], [9209, 29, 4, 0.31], [88, 1, 3, 0.3], [11054, 3, 3, 0.93], [8157, 29, 4, 0.4], [8167, 7, 3, 0.4], [19882, 1, 3, 0.16], [2366, 3, 3, 0.3], [9239, 29, 5, 0.38], [21269, 1, 3, 0.0], [21701, 3, 3, 0.52], [23039, 10, 5, 0.91], [20939, 3, 3, 0.38], [4030, 25, 3, 0.17], [10640, 3, 4, 0.32], [11056, 3, 3, 1.1], [4940, 1, 5, 0.23], [426, 1, 3, 0.3], [21693, 3, 4, 1.07], [21712, 1, 3, 0.22], [22871, 7, 3, 0.28], [825, 1, 3, 0.15], [19581, 1, 3, 0.0], [21710, 3, 9, 0.39], [3462, 2, 3, 0.31], [12517, 2, 3, 0.38], [6036, 23, 5, 0.32], [80, 1, 3, 0.28], [21808, 1, 3, 0.0], [10409, 1, 3, 0.3], [1431, 3, 4, 0.24], [5513, 2, 3, 0.25], [6270, 23, 16, 0.19], [11412, 29, 3, 0.0], [3429, 16, 3, 0.19], [3559, 11, 13, 0.22], [8188, 10, 6, 0.2], [10080, 3, 3, 0.0], [21320, 7, 9, 0.5], [149, 2, 3, 0.39], [9182, 1, 3, 0.0], [8688, 14, 5, 0.3], [8058, 3, 4, 0.45], [1260, 1, 3, 0.0], [5666, 2, 3, 0.52], [8286, 1, 3, 0.18], [13853, 3, 3, 0.3], [408, 3, 4, 0.53], [21459, 7, 6, 0.5], [20963, 3, 4, 0.62], [11965, 1, 3, 0.19], [9689, 1, 3, 0.15], [12586, 3, 4, 0.36], [8681, 3, 3, 0.18], [344, 25, 3, 0.39], [3989, 3, 8, 0.43], [380, 2, 3, 0.15], [21454, 2, 3, 0.16], [20188, 3, 3, 0.44], [11960, 3, 3, 0.17], [2318, 2, 3, 0.19], [22708, 1, 3, 0.24], [19685, 1, 3, 0.0], [1299, 3, 7, 0.24], [3609, 24, 3, 0.2], [8361, 1, 3, 0.21], [13268, 29, 3, 0.4], [214, 1, 3, 0.19], [2367, 3, 3, 0.3], [21820, 2, 3, 0.18], [3898, 3, 3, 0.25], [22038, 7, 6, 0.31], [20965, 3, 4, 0.58], [19383, 21, 7, 0.26], [11774, 1, 3, 0.22], [922, 1, 3, 0.13], [11467, 1, 3, 0.39], [5540, 1, 3, 0.17], [9380, 1, 7, 0.24], [3982, 1, 3, 0.42], [9150, 23, 4, 0.19], [4326, 1, 3, 0.14], [2365, 3, 4, 0.29], [23545, 3, 4, 0.31], [12165, 2, 3, 0.2], [21708, 3, 8, 0.24], [11411, 29, 3, 0.0], [21003, 2, 3, 0.47], [5341, 16, 3, 0.28], [12340, 2, 3, 0.38], [20964, 3, 4, 0.62], [23339, 3, 3, 0.25], [3558, 15, 3, 0.94], [11022, 3, 4, 0.4], [5577, 3, 3, 0.57], [4372, 1, 3, 0.34], [11678, 1, 4, 0.58], [19977, 2, 3, 0.85], [11290, 2, 3, 1.12], [11322, 3, 4, 0.4], [334, 25, 4, 0.35], [3908, 7, 9, 0.32], [8944, 1, 3, 0.19], [10398, 2, 3, 0.36], [22590, 1, 3, 0.18], [9049, 2, 3, 0.38], [2194, 1, 4, 0.14], [2326, 2, 3, 0.0], [12335, 2, 3, 0.18], [2193, 1, 6, 0.14], [12493, 23, 5, 0.15], [11090, 1, 3, 0.15], [10170, 1, 3, 0.34], [19361, 23, 6, 0.21], [13037, 3, 3, 0.58], [12040, 68, 4, 0.16], [3388, 1, 3, 0.51], [14038, 3, 4, 0.28], [426, 15, 3, 0.3], [12448, 2, 4, 0.23], [9910, 29, 5, 0.18], [71, 1, 3, 0.16], [21707, 3, 6, 0.0], [9409, 2, 4, 0.0], [11498, 1, 3, 0.29], [21771, 2, 7, 0.0], [1095, 2, 4, 0.18], [5368, 3, 3, 0.39], [2859, 16, 3, 0.18], [12056, 2, 4, 0.38], [11868, 3, 3, 0.29], [9083, 3, 4, 0.35], [803, 3, 3, 0.24], [512, 24, 3, 1.01], [11635, 1, 3, 0.15], [9239, 25, 3, 0.38], [9778, 1, 3, 0.27], [1602, 68, 3, 0.54], [22126, 2, 3, 0.16], [2222, 10, 3, 0.19], [10635, 2, 3, 0.49], [3598, 15, 3, 0.17], [9138, 23, 4, 0.35], [5813, 3, 4, 0.22], [5007, 1, 3, 0.25], [23030, 3, 5, 0.29], [5811, 3, 4, 0.21], [22236, 1, 3, 0.23], [11891, 3, 4, 0.32], [3389, 1, 3, 0.49], [12334, 2, 3, 0.21], [5769, 1, 3, 0.0], [5517, 1, 3, 0.35], [691, 3, 3, 0.23], [9373, 5, 3, 0.38], [2234, 1, 3, 0.17], [14040, 3, 4, 0.53], [11155, 11, 6, 0.16], [12516, 2, 3, 0.38], [8155, 25, 3, 0.3], [2099, 2, 3, 0.06], [10897, 1, 6, 0.34], [10616, 1, 3, 0.37], [13323, 3, 3, 0.26], [2421, 80, 4, 0.19], [8360, 1, 3, 0.21], [11048, 1, 3, 0.11], [1053, 728, 3, 0.14], [5647, 2, 3, 0.17], [10279, 3, 3, 0.58], [12701, 3, 4, 0.68], [1407, 2, 3, 0.0], [11909, 3, 3, 0.18], [12635, 2, 3, 0.31], [13299, 1, 3, 0.31], [20977, 1, 3, 0.15], [22321, 1, 3, 0.17], [1880, 4, 3, 1.01], [3387, 1, 3, 0.51], [12873, 1, 6, 0.33], [12230, 3, 3, 0.17], [20952, 3, 3, 0.31], [1059, 1, 3, 0.0], [12634, 2, 3, 0.0], [9623, 3, 3, 0.26], [11328, 3, 3, 0.39], [5188, 1, 3, 0.13], [11711, 3, 3, 0.42], [19346, 2, 3, 0.24], [2935, 1, 3, 0.2], [20190, 3, 3, 0.46], [12658, 1, 3, 0.54], [22879, 3, 3, 0.28], [1433, 1, 3, 0.51], [12538, 3, 4, 0.16], [12633, 2, 3, 0.41], [6872, 25, 3, 0.16], [11333, 7, 5, 0.38], [9830, 3, 3, 0.19], [10638, 2, 3, 0.49], [19969, 25, 3, 0.28], [13, 1, 3, 0.19], [19332, 2, 3, 0.19], [6872, 29, 4, 0.16], [947, 16, 3, 0.26], [13041, 3, 3, 0.21], [12379, 1, 3, 0.6], [2608, 1, 3, 0.22], [12418, 1, 3, 0.36], [2992, 3, 3, 0.51], [18, 1, 3, 0.18], [11091, 1, 3, 0.15], [21461, 7, 5, 0.5], [3906, 14, 4, 0.29], [13114, 1, 3, 0.21], [10149, 1, 3, 0.32], [13113, 1, 3, 0.22], [8923, 29, 3, 0.17], [12260, 3, 4, 0.45], [180, 15, 3, 0.3], [21482, 7, 3, 0.48], [96, 1, 3, 0.0], [2934, 1, 3, 0.17], [11902, 2, 3, 0.24], [11611, 2, 3, 0.29], [21319, 7, 7, 0.5], [948, 1, 3, 0.17], [12475, 3, 4, 0.57], [11619, 1, 3, 0.29], [5153, 2, 4, 0.0], [19366, 2, 3, 0.16], [22037, 7, 8, 0.31], [11213, 4, 3, 0.98], [17, 1, 3, 0.18], [9781, 1, 3, 0.3], [11057, 3, 3, 1.09], [432, 1, 5, 0.24], [10414, 1, 3, 0.18], [3853, 2, 3, 0.31], [1324, 1, 3, 0.17], [9871, 1, 4, 0.19], [13267, 29, 3, 0.3], [6630, 3, 3, 0.26], [6966, 3, 3, 0.54], [1805, 2, 3, 0.44], [19970, 29, 4, 0.18], [22029, 3, 3, 0.49], [22874, 3, 3, 0.28], [3854, 2, 3, 0.31], [10669, 2, 5, 0.26], [8106, 10, 3, 0.27], [8283, 1, 3, 0.19], [10668, 2, 4, 0.28], [11163, 1, 8, 0.29], [23231, 3, 4, 0.21], [2325, 2, 3, 0.09], [10666, 3, 3, 0.26], [19330, 1, 3, 0.19], [11327, 3, 4, 0.39], [13300, 3, 3, 0.46], [2916, 1, 3, 0.23], [5651, 2, 3, 0.14], [9149, 2, 3, 0.16], [2990, 3, 3, 0.5], [21688, 3, 4, 0.68], [19334, 2, 3, 0.2], [1601, 68, 3, 0.55], [22407, 1, 3, 0.19], [22884, 3, 4, 0.29], [12030, 2, 3, 0.18], [2495, 2, 3, 0.21], [3557, 15, 3, 0.21], [11105, 3, 3, 0.17], [3028, 3, 3, 0.15], [22920, 1, 3, 0.36], [22323, 1, 3, 0.19], [3477, 2, 3, 0.31], [12333, 2, 3, 0.22], [9608, 1, 3, 0.25], [3258, 1, 3, 0.34], [21684, 3, 5, 0.41], [8033, 2, 3, 0.17], [20978, 1, 3, 0.14], [426, 16, 3, 0.3], [12576, 3, 4, 0.29], [12513, 1, 3, 0.04], [10716, 3, 5, 0.18], [3851, 2, 3, 0.3], [8756, 1, 3, 0.26], [6356, 2, 3, 0.19], [11325, 3, 4, 0.39], [13295, 3, 4, 0.36], [3429, 1, 3, 0.2], [2999, 1, 3, 0.46], [23962, 3, 3, 0.28], [13854, 3, 3, 0.3], [9672, 3, 3, 0.29], [28, 1, 3, 0.3], [8132, 10, 11, 0.16], [9777, 1, 3, 0.22], [22573, 2, 3, 0.27], [12952, 21, 3, 0.68], [23331, 1, 3, 0.22], [21478, 7, 5, 0.34], [19375, 3, 3, 0.15], [9671, 3, 4, 0.29], [9910, 25, 3, 0.18], [13488, 1, 3, 0.34], [21686, 1, 3, 0.0], [23275, 2, 3, 0.27], [2507, 2, 3, 0.1], [12332, 2, 3, 0.22], [11962, 1, 3, 0.2], [6628, 3, 3, 0.17], [23489, 3, 4, 0.35], [12587, 3, 4, 0.36], [20961, 1, 4, 0.31], [19343, 2, 3, 0.22], [22878, 7, 3, 0.28], [11603, 2, 3, 0.51], [3013, 1, 3, 0.25], [23494, 3, 4, 0.13], [7084, 1, 3, 0.0], [19970, 25, 3, 0.18], [3723, 29, 3, 0.44], [2308, 25, 3, 0.35], [3599, 29, 3, 0.0], [806, 3, 3, 0.21], [5851, 1, 4, 0.18], [8907, 29, 4, 0.16], [9153, 2, 3, 0.19], [2403, 3, 3, 0.22], [7673, 7, 7, 0.18], [19344, 2, 3, 0.24], [8189, 10, 5, 0.2], [9877, 15, 3, 0.27], [8923, 25, 3, 0.17], [11613, 2, 3, 0.29], [8157, 80, 4, 0.4], [13494, 3, 4, 0.26], [9296, 1, 3, 0.19], [1722, 2, 3, 0.15], [21690, 3, 4, 0.52], [19362, 23, 4, 0.21], [11895, 1, 3, 0.14], [1513, 3, 4, 0.15], [21752, 2, 3, 0.0], [9960, 3, 3, 0.19], [11735, 3, 3, 0.35], [22631, 3, 8, 0.19], [8363, 1, 3, 0.26], [8963, 1, 3, 0.27], [12029, 2, 3, 0.18], [21817, 2, 3, 0.18], [12585, 3, 3, 0.27], [9150, 2, 3, 0.18], [13855, 3, 4, 0.33], [5660, 2, 3, 0.83], [23491, 3, 3, 0.13], [21091, 7, 3, 0.16], [59, 1, 3, 0.0], [19350, 2, 3, 0.24], [20262, 1, 3, 0.2], [2481, 15, 3, 0.19], [21010, 2, 3, 0.47], [10174, 1, 3, 0.38], [11867, 3, 3, 0.28], [10530, 29, 7, 0.4], [19335, 2, 3, 0.2], [12031, 2, 3, 0.18], [11321, 3, 4, 0.41], [12162, 2, 3, 0.2], [21704, 1, 3, 0.19], [12476, 3, 4, 0.58], [20198, 2, 3, 0.47], [11093, 1, 3, 0.15], [22888, 3, 4, 0.22], [12458, 1, 3, 0.52], [12492, 3, 3, 0.22], [473, 1, 3, 0.18], [21698, 3, 3, 0.28], [12577, 3, 4, 0.29], [9963, 3, 4, 0.29], [8683, 3, 4, 0.19], [10722, 2, 3, 0.15], [2364, 3, 4, 0.3], [3599, 25, 3, 0.7], [1060, 1, 3, 0.0], [11585, 29, 9, 0.37], [9084, 3, 4, 0.35], [9209, 25, 3, 0.31], [23232, 3, 4, 0.22], [345, 1, 3, 0.0], [3390, 1, 3, 0.49], [23038, 10, 5, 0.47], [23493, 3, 3, 0.13], [2480, 15, 3, 0.15], [6946, 1, 3, 0.38], [19352, 2, 3, 0.25], [10125, 1, 4, 0.2], [2103, 16, 3, 0.2], [951, 4, 3, 0.24], [13399, 3, 3, 0.15], [2287, 25, 3, 0.33], [12534, 10, 7, 0.23], [19879, 1, 3, 0.16], [10586, 3, 3, 0.25], [12238, 3, 3, 0.72], [19358, 23, 4, 0.21], [344, 2, 4, 0.39], [9611, 12, 3, 0.28], [19369, 2, 3, 0.15], [20315, 3, 3, 0.21], [5652, 2, 3, 0.2], [4043, 29, 4, 0.21], [2169, 3, 3, 0.33], [20958, 3, 3, 0.29], [2217, 1, 3, 0.23], [13326, 3, 3, 0.21], [5910, 10, 8, 0.15], [9493, 1, 3, 0.0], [8651, 2, 3, 0.39], [1619, 1, 3, 0.21], [11020, 3, 3, 0.39], [5341, 1, 3, 0.28], [12674, 1, 4, 0.26], [22865, 7, 5, 0.35], [1691, 1, 3, 0.32], [19968, 29, 4, 0.0], [3915, 1, 3, 0.15], [9153, 23, 5, 0.19], [9480, 2, 3, 0.15], [19379, 2, 3, 0.37], [2411, 29, 6, 0.25], [9841, 1, 3, 0.22], [12426, 3, 4, 0.25], [20953, 3, 3, 0.31], [9207, 29, 3, 0.41], [23247, 25, 3, 0.19], [10532, 14, 4, 0.17], [22696, 3, 3, 0.29], [12339, 2, 3, 0.33], [19968, 25, 4, 0.04], [12725, 1, 3, 0.28], [12930, 2, 3, 0.16], [2743, 3, 3, 0.37], [11226, 1, 3, 0.21], [4966, 2, 3, 0.17], [23546, 3, 4, 0.25], [20316, 3, 3, 0.21], [19969, 29, 3, 0.29], [21822, 2, 3, 0.18], [12024, 2, 3, 0.3], [23380, 25, 3, 0.18], [12250, 14, 3, 0.14], [3430, 16, 3, 0.31], [857, 1, 3, 0.41], [10670, 2, 3, 0.24], [8280, 2, 4, 0.5], [22565, 3, 4, 0.44], [12366, 3, 3, 0.75], [22408, 1, 3, 0.21], [3053, 3, 3, 0.43], [19340, 2, 3, 0.21], [12218, 3, 7, 0.24], [10413, 1, 3, 0.0], [3903, 14, 4, 0.37], [9148, 23, 4, 0.17], [13489, 1, 3, 0.34], [1664, 2, 3, 0.14], [21012, 2, 3, 0.47], [3551, 3, 3, 0.22], [2421, 29, 3, 0.18], [12255, 14, 3, 0.14], [11968, 1, 3, 0.1], [8281, 2, 3, 0.5], [9489, 2, 3, 0.17], [11021, 3, 4, 0.4], [12494, 3, 3, 0.15], [12430, 1, 3, 0.36], [962, 10, 6, 0.22], [22706, 1, 3, 0.24], [11087, 1, 3, 0.23], [11185, 23, 3, 0.12], [8191, 10, 5, 0.19], [11403, 1, 6, 0.01], [9485, 2, 3, 0.17], [2190, 1, 3, 0.21], [21004, 2, 3, 0.47], [11659, 3, 3, 0.57], [4866, 1, 3, 0.2], [3134, 3, 8, 0.2], [8660, 1, 3, 0.0], [19337, 2, 3, 0.2], [11509, 2, 3, 0.85], [12630, 10, 4, 0.19], [11643, 1, 3, 0.32], [633, 15, 3, 0.0], [20317, 3, 3, 0.21], [12645, 1, 3, 0.45], [11860, 3, 3, 0.22], [13004, 3, 3, 0.15], [12232, 3, 3, 0.17], [8934, 2, 3, 0.92], [13966, 1, 3, 0.23], [13392, 23, 7, 0.16], [10150, 3, 11, 0.18], [12994, 3, 7, 0.29], [23341, 3, 3, 0.25], [8872, 1, 3, 0.22], [2100, 25, 3, 0.24], [358, 1, 3, 0.03], [9840, 1, 3, 0.22], [23380, 29, 3, 0.18], [3421, 3, 12, 0.13], [12505, 1, 3, 0.21], [11887, 1, 3, 0.24], [8050, 2, 3, 0.21], [8753, 1, 3, 0.26], [11901, 2, 3, 0.23], [8285, 1, 3, 0.2], [2196, 25, 3, 0.02], [689, 3, 3, 0.21], [10529, 29, 6, 0.41], [201, 1, 3, 0.0], [23492, 3, 3, 0.13], [11687, 1, 3, 0.11], [8059, 1, 3, 0.47], [23040, 1, 3, 0.0], [11899, 2, 3, 0.24], [23335, 14, 4, 0.3], [19365, 2, 3, 0.15], [2851, 1, 3, 0.37], [11338, 7, 3, 0.45], [10538, 3, 3, 0.18], [19964, 29, 5, 0.2], [3848, 2, 3, 0.31], [12609, 1, 3, 0.23], [23961, 1, 3, 0.29], [13257, 29, 3, 0.35], [12357, 1, 3, 0.63], [11861, 3, 4, 0.33], [10838, 3, 3, 0.26], [9070, 1, 3, 0.16], [333, 25, 4, 0.34], [12309, 2, 3, 0.37], [2217, 15, 3, 0.23], [880, 2, 3, 0.8], [2406, 29, 3, 0.35], [7364, 2, 3, 0.0], [1294, 1, 3, 0.0], [22908, 3, 4, 0.09], [385, 1, 3, 0.49], [19374, 2, 3, 0.16], [2733, 3, 3, 0.5], [12241, 1, 5, 0.14], [23230, 3, 3, 0.22], [22436, 3, 5, 0.25], [2859, 1, 3, 0.17], [24126, 3, 3, 0.23], [4001, 1, 3, 0.42], [13027, 3, 4, 0.51], [9148, 2, 3, 0.17], [23490, 3, 3, 0.35], [21088, 7, 3, 0.17], [11212, 4, 3, 0.98], [8051, 2, 3, 0.21], [11857, 1, 3, 0.37], [19345, 2, 3, 0.2], [22891, 3, 3, 0.09], [22893, 3, 3, 0.29], [22588, 3, 3, 0.21], [61, 1, 3, 0.0], [11896, 2, 3, 0.17], [13254, 29, 5, 0.21], [10530, 80, 3, 0.41], [3905, 14, 4, 0.0], [11719, 1, 3, 0.0], [3864, 2, 3, 0.27], [3552, 3, 3, 0.22], [22585, 3, 3, 0.22], [947, 1, 3, 0.26], [11162, 1, 19, 0.38], [14015, 3, 3, 0.0], [6627, 3, 3, 0.17], [9483, 2, 3, 0.15], [1576, 1, 3, 0.25], [11945, 3, 3, 0.32], [20306, 23, 4, 0.27], [9081, 1, 3, 0.39], [94, 1, 4, 0.39], [7204, 1, 3, 0.31], [6540, 25, 3, 0.36], [12512, 1, 3, 0.15], [20308, 23, 5, 0.27], [2196, 2, 3, 0.0], [2744, 3, 3, 0.39], [19964, 25, 3, 0.2], [13396, 3, 3, 0.15], [12032, 2, 3, 0.18], [19686, 1, 3, 0.25], [19364, 23, 4, 0.2], [2857, 1, 3, 0.18], [9085, 29, 4, 0.4], [6507, 1, 3, 0.16], [1512, 3, 5, 0.14], [5406, 2, 3, 0.19], [192, 3, 11, 0.29], [22693, 3, 3, 0.29], [11084, 1, 3, 0.23], [12623, 10, 4, 0.18], [590, 1, 3, 0.18], [9960, 1, 4, 0.19], [</t>
+  </si>
+  <si>
+    <t>[[2327, 2, 10, 0.37], [305, 2, 8, 0.3], [130, 1, 7, 0.16], [589, 2, 11, 0.0], [6935, 2, 19, 0.62], [8915, 2, 9, 0.0], [2328, 2, 9, 0.37], [326, 2, 9, 0.24], [2778, 2, 9, 0.37], [143, 2, 7, 0.22], [144, 2, 7, 0.35], [8648, 2, 8, 0.44], [205, 2, 6, 0.24], [8650, 2, 8, 0.44], [616, 2, 14, 0.27], [5493, 2, 10, 0.28], [1446, 2, 5, 0.0], [615, 2, 14, 0.27], [2775, 2, 7, 0.37], [88, 10, 19, 0.3], [151, 1, 8, 0.18], [593, 2, 13, 0.24], [9507, 3, 3, 0.1], [146, 2, 6, 0.34], [2049, 3, 12, 0.15], [3840, 1, 7, 0.21], [7004, 1, 5, 0.2], [206, 2, 5, 0.24], [990, 2, 6, 0.23], [12224, 1, 5, 0.23], [2776, 2, 7, 0.37], [8938, 2, 5, 0.0], [145, 2, 6, 0.26], [2055, 3, 5, 0.0], [378, 2, 6, 0.44], [159, 3, 8, 0.16], [1429, 2, 4, 0.0], [141, 2, 6, 0.27], [5491, 2, 6, 0.28], [2054, 3, 5, 0.0], [3893, 1, 6, 0.2], [2057, 3, 6, 0.0], [10, 2, 8, 0.19], [8853, 2, 10, 0.62], [8649, 2, 6, 0.44], [434, 2, 6, 0.1], [6936, 2, 11, 0.62], [3889, 1, 5, 0.17], [624, 2, 11, 0.28], [3891, 1, 6, 0.19], [362, 2, 6, 0.27], [1504, 2, 7, 0.55], [2050, 3, 5, 0.0], [7036, 1, 6, 0.48], [61, 3, 5, 0.26], [248, 1, 5, 0.24], [10993, 2, 8, 0.24], [997, 2, 5, 0.0], [140, 2, 6, 0.23], [9760, 29, 6, 0.1], [10574, 3, 8, 0.3], [1124, 2, 7, 0.28], [19925, 2, 6, 0.49], [998, 2, 5, 0.0], [75, 2, 7, 0.24], [5208, 3, 10, 0.2], [1007, 2, 7, 0.14], [417, 2, 5, 0.27], [2497, 2, 7, 0.55], [8672, 2, 8, 0.41], [12225, 1, 3, 0.23], [996, 2, 4, 0.0], [7005, 1, 4, 0.2], [20927, 1, 3, 0.2], [346, 3, 4, 0.26], [523, 2, 4, 0.27], [11737, 2, 5, 0.29], [361, 2, 5, 0.27], [142, 2, 6, 0.27], [94, 4, 3, 0.39], [2912, 1, 7, 0.2], [7084, 3, 3, 0.05], [8939, 2, 3, 0.0], [7886, 4, 4, 0.16], [11811, 1, 5, 0.19], [3, 2, 7, 0.17], [972, 3, 6, 0.22], [7885, 4, 4, 0.16], [5165, 1, 5, 0.24], [229, 1, 3, 0.44], [1126, 2, 4, 0.21], [9372, 1, 9, 0.05], [11953, 1, 5, 0.49], [995, 2, 3, 0.22], [1656, 2, 5, 0.4], [10149, 3, 20, 0.33], [2991, 3, 4, 0.42], [5209, 3, 7, 0.2], [957, 2, 4, 0.28], [955, 2, 6, 0.43], [1413, 15, 3, 0.21], [12870, 1, 5, 0.48], [11404, 2, 7, 0.31], [22179, 1, 3, 0.28], [13964, 1, 3, 0.22], [13962, 1, 3, 0.26], [5165, 2, 9, 0.24], [2424, 80, 6, 0.42], [11234, 2, 5, 0.26], [8651, 2, 4, 0.42], [346, 1, 5, 0.25], [9491, 21, 12, 0.22], [20252, 2, 19, 0.28], [12269, 2, 5, 0.26], [1005, 2, 3, 0.17], [13967, 1, 3, 0.2], [5946, 1, 3, 0.38], [13028, 3, 5, 0.66], [76, 2, 3, 0.25], [11808, 1, 4, 0.28], [12721, 2, 7, 0.38], [1886, 2, 8, 1.27], [412, 1, 3, 0.31], [1163, 3, 5, 0.21], [214, 3, 11, 0.16], [2912, 2, 9, 0.2], [413, 1, 3, 0.31], [11769, 1, 3, 0.02], [1654, 2, 4, 0.4], [11681, 2, 12, 0.75], [126, 2, 3, 0.33], [11490, 1, 3, 0.37], [13928, 1, 3, 0.3], [20256, 2, 17, 0.31], [584, 2, 3, 0.39], [10148, 1, 5, 0.16], [21793, 1, 7, 0.62], [11039, 2, 4, 0.49], [22316, 3, 5, 0.29], [2774, 2, 5, 0.78], [3429, 15, 3, 0.19], [1414, 15, 3, 0.21], [1006, 2, 4, 0.22], [583, 2, 3, 0.39], [950, 1, 7, 0.36], [956, 2, 3, 0.2], [1492, 1, 5, 0.17], [11767, 1, 3, 0.01], [7887, 4, 3, 0.19], [96, 11, 19, 0.37], [10407, 10, 9, 1.11], [9784, 1, 3, 0.27], [418, 2, 3, 0.27], [152, 21, 3, 0.54], [5076, 1, 8, 0.61], [74, 1, 5, 0.78], [11770, 1, 5, 0.35], [2805, 137, 9, 1.04], [11739, 2, 3, 0.29], [12229, 2, 6, 0.23], [411, 2, 3, 0.37], [8286, 2, 4, 0.17], [6497, 1, 7, 0.26], [2436, 4, 3, 0.52], [71, 15, 3, 0.19], [22247, 2, 6, 0.38], [13965, 1, 3, 0.24], [8898, 3, 5, 0.67], [7567, 3, 4, 0.27], [105, 3, 3, 0.07], [9690, 1, 3, 0.22], [5584, 3, 3, 0.69], [8283, 2, 4, 0.18], [159, 1, 7, 0.15], [11671, 1, 5, 0.4], [8943, 3, 3, 0.28], [410, 1, 3, 0.54], [2424, 29, 6, 0.42], [114, 3, 3, 0.07], [12212, 29, 5, 0.24], [12764, 2, 7, 0.28], [8274, 3, 5, 0.25], [6158, 2, 5, 0.38], [161, 3, 7, 0.34], [1243, 2, 6, 0.64], [8635, 3, 4, 0.24], [5490, 2, 3, 0.26], [10410, 10, 9, 1.1], [11813, 1, 3, 0.3], [9, 1, 4, 0.19], [2423, 80, 5, 0.36], [6805, 1, 3, 0.28], [8677, 3, 5, 0.23], [336, 15, 3, 0.16], [33, 1, 3, 0.38], [972, 1, 3, 0.22], [35, 1, 3, 0.38], [6097, 80, 3, 0.45], [83, 2, 3, 0.18], [12223, 1, 3, 0.27], [4032, 29, 6, 0.45], [11812, 1, 3, 0.21], [12369, 3, 9, 0.89], [159, 16, 3, 0.15], [2331, 1, 3, 0.56], [9081, 3, 9, 0.35], [13968, 1, 3, 0.25], [4253, 1, 3, 0.25], [21059, 1, 5, 0.32], [8676, 2, 4, 0.41], [1339, 3, 15, 0.18], [11504, 2, 3, 0.27], [5164, 1, 3, 0.27], [415, 1, 3, 0.31], [1519, 3, 14, 0.18], [38, 1, 3, 0.38], [22317, 3, 5, 0.3], [11772, 1, 4, 0.78], [110, 4, 3, 0.19], [8944, 3, 3, 0.18], [11164, 1, 5, 0.6], [788, 2, 3, 0.15], [10408, 10, 9, 0.27], [8104, 1, 6, 0.25], [335, 3, 11, 0.21], [34, 1, 3, 0.38], [12271, 2, 4, 0.26], [11952, 1, 5, 0.57], [84, 2, 3, 0.19], [12720, 2, 4, 0.38], [11235, 2, 9, 0.6], [11814, 1, 3, 0.22], [20649, 1, 3, 0.38], [202, 2, 3, 0.17], [440, 3, 3, 0.75], [13034, 3, 5, 0.59], [14041, 3, 4, 0.16], [3495, 3, 14, 0.28], [11674, 1, 3, 0.0], [21704, 3, 14, 0.19], [6496, 1, 4, 0.39], [9691, 1, 3, 0.22], [1548, 1, 3, 0.3], [11489, 1, 3, 0.37], [20258, 2, 8, 0.22], [8285, 2, 4, 0.2], [10631, 2, 4, 0.49], [13928, 2, 5, 0.3], [973, 3, 5, 0.3], [3576, 29, 5, 0.27], [66, 15, 3, 0.19], [11687, 2, 4, 0.11], [12964, 3, 3, 0.53], [1895, 3, 4, 0.47], [10411, 10, 8, 0.28], [3900, 3, 3, 0.32], [5005, 3, 7, 0.18], [11954, 1, 3, 0.11], [1274, 1, 3, 0.28], [823, 1, 3, 0.4], [8121, 3, 4, 0.14], [39, 1, 3, 0.38], [11586, 1, 5, 0.4], [11179, 1, 3, 0.35], [8945, 3, 4, 0.45], [8120, 3, 3, 0.14], [286, 3, 3, 0.37], [21060, 1, 3, 0.31], [6097, 29, 4, 0.44], [5434, 1, 3, 0.21], [10406, 10, 8, 0.33], [11116, 1, 3, 0.15], [416, 1, 3, 0.31], [8659, 1, 3, 0.4], [3892, 1, 3, 0.32], [435, 2, 3, 0.31], [1622, 1, 6, 0.16], [414, 1, 3, 0.31], [21712, 3, 15, 0.16], [389, 4, 3, 0.36], [37, 1, 3, 0.38], [3980, 4, 6, 0.35], [3576, 25, 5, 0.27], [11236, 2, 7, 0.31], [12355, 3, 4, 0.57], [590, 15, 3, 0.17], [632, 11, 17, 0.0], [7007, 1, 3, 0.24], [9065, 2, 4, 0.13], [3894, 1, 3, 0.39], [9126, 1, 5, 0.31], [13893, 2, 4, 0.37], [12356, 3, 4, 0.52], [2336, 3, 7, 0.22], [3048, 3, 5, 0.5], [6494, 1, 5, 0.18], [2703, 3, 5, 0.29], [12357, 3, 5, 0.67], [10536, 3, 5, 0.13], [5453, 1, 4, 0.3], [66, 16, 3, 0.19], [2438, 2, 6, 0.25], [19931, 1, 4, 0.21], [12362, 3, 4, 0.57], [11150, 2, 8, 0.19], [19583, 3, 4, 0.47], [8674, 2, 5, 0.41], [2104, 3, 10, 0.19], [11689, 2, 4, 0.11], [12338, 29, 3, 0.22], [9049, 2, 3, 0.35], [7558, 3, 4, 0.09], [1699, 3, 3, 0.27], [12979, 25, 8, 0.29], [10936, 2, 3, 0.5], [3430, 15, 3, 0.3], [432, 3, 4, 0.31], [93, 11, 14, 0.29], [12646, 1, 4, 0.42], [1703, 2, 6, 0.67], [11158, 1, 7, 0.55], [2423, 29, 3, 0.36], [1667, 3, 3, 0.27], [3575, 29, 5, 0.29], [11510, 3, 4, 0.32], [7704, 2, 5, 0.32], [21683, 3, 4, 0.47], [9785, 1, 3, 0.27], [10172, 3, 6, 0.16], [8897, 3, 4, 0.66], [12526, 2, 3, 0.3], [3334, 5, 7, 1.03], [789, 2, 3, 0.15], [8284, 2, 4, 0.21], [3674, 2, 4, 0.42], [11485, 24, 3, 0.5], [215, 4, 3, 0.48], [45, 2, 4, 1.14], [82, 2, 3, 0.18], [9786, 1, 3, 0.27], [13433, 2, 6, 0.41], [9787, 1, 3, 0.28], [3047, 3, 5, 0.45], [147, 1, 3, 0.37], [4076, 3, 3, 0.46], [1080, 3, 3, 1.31], [9827, 3, 3, 0.2], [10409, 10, 8, 0.32], [3456, 3, 3, 0.22], [4940, 1, 5, 0.22], [21686, 3, 6, 0.63], [7182, 1, 3, 0.17], [7705, 2, 5, 0.32], [2859, 15, 3, 0.28], [11089, 1, 3, 0.61], [1523, 1, 3, 0.45], [1413, 16, 3, 0.21], [12653, 1, 5, 0.17], [12501, 1, 3, 0.0], [9124, 1, 4, 0.31], [399, 24, 3, 0.35], [1490, 1, 4, 0.31], [12647, 1, 5, 0.41], [12373, 1, 6, 0.78], [220, 4, 3, 0.49], [947, 15, 3, 0.26], [1309, 1, 3, 0.28], [3059, 3, 4, 0.46], [5585, 3, 3, 0.67], [3577, 25, 5, 0.24], [19047, 3, 3, 0.21], [10514, 3, 3, 0.29], [4232, 80, 4, 0.41], [7707, 2, 5, 0.32], [70, 16, 3, 0.17], [21269, 3, 3, 1.09], [1049, 2, 4, 0.15], [8600, 1, 3, 0.42], [247, 1, 4, 0.34], [567, 2, 5, 0.29], [11690, 2, 4, 0.12], [1050, 2, 4, 0.15], [5164, 2, 7, 0.26], [1661, 3, 3, 0.27], [2109, 3, 11, 0.22], [9082, 3, 22, 0.48], [9204, 3, 4, 0.38], [3575, 25, 5, 0.29], [12662, 1, 3, 0.41], [10407, 1, 3, 0.0], [439, 1, 3, 0.26], [21713, 3, 10, 0.18], [12361, 3, 4, 0.67], [5005, 1, 5, 0.19], [11491, 2, 3, 0.27], [79, 1, 4, 0.22], [1339, 1, 3, 0.18], [8356, 1, 3, 0.49], [10388, 2, 3, 0.38], [436, 2, 4, 0.29], [6931, 2, 3, 0.28], [20486, 3, 4, 0.49], [11778, 1, 6, 0.22], [10537, 3, 4, 0.18], [7573, 1, 8, 0.32], [22029, 3, 3, 0.5], [11426, 25, 4, 0.26], [10633, 2, 3, 0.49], [270, 3, 3, 0.24], [18964, 1, 3, 0.28], [11844, 2, 3, 0.38], [11942, 29, 6, 0.42], [938, 3, 4, 0.32], [11181, 1, 6, 0.74], [7708, 2, 6, 0.32], [3577, 29, 3, 0.24], [10780, 10, 4, 0.77], [11160, 1, 5, 0.54], [11426, 29, 4, 0.26], [19581, 3, 4, 0.47], [11081, 3, 3, 0.28], [21809, 1, 4, 0.0], [13033, 3, 4, 0.59], [10939, 2, 3, 0.5], [856, 1, 3, 0.19], [9783, 1, 3, 0.26], [1801, 1, 3, 0.37], [71, 16, 3, 0.19], [10940, 2, 3, 0.5], [7706, 2, 4, 0.32], [5007, 3, 6, 0.22], [62, 3, 14, 0.35], [11936, 2, 3, 0.5], [1604, 68, 3, 0.46], [2492, 1, 3, 0.27], [19932, 1, 3, 0.22], [13023, 3, 6, 0.35], [12661, 1, 3, 1.0], [12234, 3, 3, 0.6], [11183, 1, 6, 0.84], [11846, 3, 3, 0.28], [1300, 3, 3, 0.32], [13498, 3, 4, 0.67], [2422, 80, 4, 0.41], [36, 1, 3, 0.38], [107, 2, 5, 0.31], [9971, 2, 3, 0.41], [958, 2, 3, 0.3], [9507, 1, 3, 0.1], [97, 11, 16, 0.26], [11685, 2, 13, 0.79], [148, 1, 3, 0.37], [3975, 4, 3, 0.35], [10941, 2, 3, 0.5], [2991, 1, 4, 0.42], [1668, 1, 3, 0.3], [2854, 21, 8, 0.23], [66, 1, 4, 0.19], [12728, 1, 3, 0.0], [21810, 1, 4, 0.0], [6489, 11, 15, 0.12], [10825, 21, 11, 0.31], [10413, 10, 6, 0.7], [6266, 23, 11, 0.24], [9186, 29, 3, 0.23], [3143, 3, 3, 0.44], [2528, 29, 3, 0.24], [1691, 1, 3, 0.36], [382, 1, 3, 0.5], [3478, 2, 3, 0.28], [216, 4, 3, 0.31], [1185, 3, 3, 0.57], [21697, 3, 3, 0.28], [3049, 3, 4, 0.48], [5976, 1, 4, 0.3], [2322, 2, 3, 0.32], [11868, 3, 3, 0.28], [11768, 1, 3, 0.0], [11794, 2, 3, 0.15], [8927, 10, 9, 0.15], [10386, 2, 3, 0.37], [98, 11, 17, 0.17], [6098, 80, 3, 0.36], [12241, 3, 4, 0.14], [7119, 3, 3, 0.2], [3341, 3, 3, 0.56], [2738, 3, 4, 0.49], [2878, 1, 3, 0.59], [8234, 1, 3, 0.35], [11288, 2, 5, 1.3], [10093, 3, 11, 0.44], [11738, 2, 3, 0.29], [10937, 2, 3, 0.5], [10398, 2, 3, 0.33], [9965, 2, 3, 0.41], [9069, 1, 3, 0.36], [22318, 3, 4, 0.46], [2803, 2, 6, 0.53], [9113, 15, 4, 0.17], [12368, 3, 4, 0.68], [6952, 1, 4, 0.42], [107, 7, 6, 0.31], [8673, 2, 3, 0.45], [21687, 3, 5, 0.63], [2109, 1, 5, 0.22], [11425, 25, 3, 0.25], [5435, 1, 3, 0.15], [21706, 3, 11, 0.16], [11150, 1, 3, 0.19], [7122, 3, 3, 0.2], [10408, 1, 4, 0.26], [12358, 3, 4, 0.66], [9491, 1, 5, 0.2], [5940, 3, 3, 0.21], [14018, 3, 3, 0.11], [11425, 29, 4, 0.25], [11159, 1, 6, 0.52], [12360, 3, 4, 0.66], [11180, 1, 3, 0.35], [9374, 5, 5, 0.66], [10516, 3, 5, 0.29], [9355, 1, 3, 0.27], [11587, 1, 4, 0.46], [23961, 3, 3, 0.26], [11793, 2, 5, 0.38], [10717, 3, 4, 0.16], [13025, 3, 4, 0.49], [2368, 3, 5, 0.31], [13264, 29, 4, 0.22], [21807, 1, 3, 0.0], [12417, 1, 3, 0.36], [12417, 3, 4, 0.35], [4372, 10, 8, 0.32], [2335, 3, 3, 0.26], [21806, 1, 3, 0.0], [11711, 3, 3, 0.4], [2049, 1, 3, 0.15], [10410, 1, 3, 0.0], [10581, 3, 5, 0.6], [12010, 3, 3, 0.0], [409, 1, 3, 0.24], [2169, 3, 4, 0.21], [11084, 2, 4, 0.28], [12979, 1, 3, 0.29], [9138, 2, 3, 0.33], [974, 3, 4, 0.37], [7724, 3, 3, 0.54], [2538, 1, 5, 0.12], [11080, 3, 3, 0.93], [9854, 1, 3, 0.42], [11644, 1, 3, 0.31], [11087, 2, 4, 0.28], [9840, 25, 7, 0.2], [20650, 1, 3, 0.4], [7324, 1, 3, 0.21], [3337, 1, 3, 0.38], [288, 3, 4, 0.32], [3981, 3, 15, 0.43], [20555, 2, 3, 0.3], [524, 1, 3, 0.31], [13110, 3, 5, 0.89], [10414, 10, 6, 0.17], [21700, 3, 3, 0.53], [4329, 3, 7, 0.17], [1432, 25, 4, 0.19], [9841, 25, 8, 0.2], [21703, 3, 3, 0.52], [1024, 1, 3, 0.19], [3934, 5, 10, 0.49], [6728, 1, 3, 0.26], [12235, 3, 3, 0.6], [10181, 26, 8, 0.0], [11719, 3, 5, 1.07], [11450, 2, 3, 0.16], [11088, 2, 4, 0.28], [12935, 3, 4, 0.4], [8054, 1, 3, 0.3], [10411, 1, 5, 0.27], [21699, 3, 4, 0.29], [12304, 1, 3, 0.74], [11771, 1, 4, 0.13], [11726, 29, 3, 0.2], [1575, 1, 3, 0.38], [12270, 2, 3, 0.26], [10385, 2, 3, 0.28], [11085, 2, 5, 0.28], [11427, 2, 3, 0.17], [1277, 1, 6, 0.28], [19924, 2, 4, 0.44], [11603, 2, 3, 0.51], [8599, 1, 3, 0.46], [563, 2, 3, 0.18], [11526, 10, 8, 0.15], [10720, 29, 4, 0.23], [21683, 1, 3, 0.0], [7703, 2, 3, 0.32], [9828, 3, 3, 0.2], [10540, 3, 3, 0.18], [11678, 1, 6, 0.58], [5020, 23, 12, 0.24], [20969, 3, 4, 0.58], [10632, 2, 3, 0.49], [11178, 1, 3, 0.34], [23611, 3, 5, 0.41], [3088, 1, 3, 0.17], [10387, 2, 3, 0.38], [2103, 15, 3, 0.2], [1406, 25, 4, 0.22], [942, 3, 3, 0.29], [12621, 1, 3, 0.4], [944, 15, 3, 0.16], [2369, 3, 5, 0.23], [14017, 3, 3, 0.12], [490, 1, 5, 0.22], [11625, 29, 5, 0.2], [4176, 4, 3, 0.35], [11495, 1, 3, 0.13], [22968, 1, 3, 0.2], [19687, 1, 3, 0.34], [186, 3, 8, 0.28], [12365, 3, 4, 0.51], [11717, 3, 3, 1.11], [3982, 3, 12, 0.42], [5343, 15, 3, 0.26], [11960, 3, 4, 0.14], [4327, 1, 3, 0.29], [12059, 3, 4, 0.28], [1301, 3, 3, 0.34], [201, 3, 4, 0.4], [11161, 1, 5, 0.48], [3391, 1, 3, 0.5], [10124, 1, 5, 0.17], [10630, 2, 3, 0.49], [289, 3, 3, 0.32], [332, 2, 3, 0.17], [991, 2, 3, 0.32], [3723, 25, 3, 0.44], [21705, 3, 7, 0.42], [424, 11, 8, 0.27], [1413, 1, 3, 0.21], [12367, 3, 4, 0.67], [3909, 7, 10, 0.32], [12791, 2, 6, 0.21], [4203, 1, 3, 0.19], [3722, 25, 3, 0.17], [11157, 11, 6, 0.17], [3278, 29, 3, 0.27], [12764, 1, 3, 0.27], [3910, 7, 9, 0.33], [11930, 1, 3, 0.58], [13198, 29, 3, 0.31], [5734, 2, 3, 0.18], [5939, 3, 3, 0.22], [10720, 80, 4, 0.23], [1414, 16, 3, 0.21], [13035, 3, 4, 0.5], [11467, 1, 3, 0.59], [12058, 3, 3, 0.28], [9796, 3, 9, 0.3], [21474, 7, 3, 0.48], [1515, 1, 3, 0.16], [13024, 3, 4, 0.48], [10275, 3, 3, 0.24], [9068, 1, 3, 0.37], [12363, 3, 4, 0.66], [6267, 23, 10, 0.24], [13107, 3, 5, 1.06], [20498, 3, 4, 0.42], [22330, 3, 3, 0.47], [2422, 29, 3, 0.4], [19582, 3, 3, 0.47], [308, 1, 3, 0.22], [3104, 1, 3, 0.46], [406, 3, 6, 0.56], [6269, 23, 10, 0.04], [9149, 23, 4, 0.17], [12369, 1, 4, 0.0], [11306, 2, 3, 0.83], [12873, 1, 4, 0.31], [20556, 2, 3, 0.27], [10521, 3, 4, 0.32], [952, 4, 3, 0.26], [21694, 3, 5, 0.53], [8636, 3, 5, 0.64], [11618, 1, 3, 0.29], [6098, 29, 3, 0.35], [11775, 1, 3, 0.24], [12418, 3, 4, 0.35], [13263, 29, 3, 0.32], [11399, 2, 3, 0.23], [353, 1, 3, 0.38], [2193, 1, 11, 0.13], [12875, 1, 4, 0.24], [13041, 3, 3, 0.21], [4030, 25, 4, 0.21], [7702, 2, 5, 0.32], [10147, 1, 4, 0.17], [11677, 1, 3, 1.18], [10531, 14, 8, 0.25], [6872, 25, 3, 0.19], [2108, 3, 6, 0.17], [560, 1, 3, 0.48], [9083, 3, 3, 0.35], [21692, 3, 4, 0.76], [9358, 1, 5, 0.15], [23545, 3, 4, 0.26], [12053, 2, 5, 0.38], [8675, 2, 4, 0.41], [5341, 15, 3, 0.28], [3983, 4, 3, 0.35], [20486, 1, 3, 0.0], [10721, 29, 4, 0.17], [5513, 2, 4, 0.18], [1851, 1, 3, 0.16], [2421, 80, 4, 0.19], [9113, 1, 3, 0.17], [11091, 1, 3, 0.15], [5128, 1, 3, 0.24], [10609, 1, 6, 0.62], [1091, 1, 3, 0.19], [22920, 3, 4, 0.35], [22573, 2, 3, 0.27], [8557, 3, 3, 0.4], [23032, 3, 4, 0.3], [21701, 3, 3, 0.52], [23276, 3, 4, 0.44], [10412, 10, 6, 0.2], [5343, 16, 3, 0.27], [9964, 2, 3, 0.41], [6359, 10, 9, 0.17], [11410, 29, 5, 0.2], [11773, 1, 3, 0.22], [7457, 3, 4, 0.21], [3979, 3, 12, 0.42], [22570, 1, 3, 0.39], [10461, 3, 5, 0.37], [21783, 2, 3, 0.17], [4030, 29, 3, 0.21], [448, 1, 3, 0.18], [12706, 23, 11, 0.0], [13258, 29, 7, 0.36], [8754, 2, 5, 0.2], [426, 1, 9, 0.15], [59, 3, 10, 0.33], [10815, 3, 5, 1.07], [21808, 1, 3, 0.0], [21789, 2, 3, 0.17], [3899, 3, 3, 0.24], [491, 10, 8, 0.31], [3258, 7, 4, 0.34], [10272, 3, 3, 0.29], [8753, 2, 5, 0.27], [10459, 3, 5, 0.37], [3340, 3, 3, 0.87], [948, 15, 3, 0.13], [2438, 1, 3, 0.26], [10530, 29, 5, 0.4], [824, 1, 3, 0.17], [9829, 3, 3, 0.18], [6575, 3, 3, 0.41], [506, 1, 3, 0.37], [2709, 15, 3, 0.28], [3258, 1, 4, 0.34], [4354, 1, 3, 0.42], [8756, 2, 5, 0.27], [1407, 25, 4, 0.23], [10721, 80, 4, 0.17], [2234, 1, 3, 0.4], [161, 1, 3, 0.34], [11435, 2, 3, 0.18], [13274, 29, 5, 0.31], [13108, 3, 5, 1.07], [3429, 16, 3, 0.19], [2537, 1, 3, 0.24], [2726, 3, 4, 0.48], [3028, 3, 3, 0.15], [19334, 2, 3, 0.17], [23028, 3, 3, 0.31], [11619, 1, 3, 0.29], [13259, 29, 6, 0.0], [21781, 2, 3, 0.17], [12057, 2, 3, 0.38], [5152, 2, 3, 0.57], [3338, 1, 3, 0.22], [1299, 3, 6, 0.28], [13104, 3, 4, 1.06], [3462, 2, 3, 0.31], [13491, 7, 3, 0.45], [23040, 10, 6, 1.12], [21690, 3, 4, 0.52], [4222, 4, 3, 0.44], [11718, 3, 4, 1.11], [21463, 7, 4, 0.29], [11683, 2, 9, 0.74], [5151, 2, 3, 0.38], [11092, 1, 3, 0.15], [4043, 29, 4, 0.22], [1620, 1, 3, 0.21], [10719, 80, 4, 0.24], [21317, 3, 3, 0.17], [9138, 23, 5, 0.35], [95, 3, 12, 0.27], [8637, 3, 4, 0.69], [70, 1, 3, 0.17], [11885, 2, 4, 0.24], [10816, 3, 4, 1.06], [11931, 1, 3, 0.58], [3016, 68, 3, 0.48], [11710, 3, 4, 0.18], [88, 1, 3, 0.3], [13324, 3, 4, 0.16], [2323, 2, 3, 0.32], [13133, 3, 4, 0.68], [10406, 1, 3, 0.31], [3257, 4, 3, 0.45], [4175, 3, 11, 0.43], [22921, 3, 3, 0.47], [149, 2, 3, 0.37], [11887, 2, 4, 0.24], [11090, 1, 3, 0.15], [7120, 3, 3, 0.24], [12497, 3, 4, 0.21], [825, 1, 3, 0.17], [4001, 3, 11, 0.42], [11961, 1, 4, 0.17], [8355, 1, 3, 0.48], [1431, 3, 6, 0.28], [437, 3, 3, 0.23], [9494, 1, 4, 0.3], [6034, 23, 5, 0.51], [11848, 1, 3, 0.25], [21316, 3, 3, 0.17], [12980, 25, 7, 0.21], [10580, 3, 4, 0.86], [19977, 2, 3, 1.03], [11633, 1, 3, 0.18], [4223, 4, 3, 0.29], [20259, 2, 7, 0.21], [11104, 3, 3, 0.86], [9945, 3, 3, 0.21], [12496, 3, 4, 0.21], [21480, 7, 6, 0.5], [21476, 7, 4, 0.44], [11721, 3, 5, 1.07], [13266, 29, 3, 0.28], [10460, 3, 4, 0.37], [5153, 2, 3, 0.17], [2879, 1, 3, 0.25], [12055, 2, 3, 0.38], [9085, 29, 4, 0.38], [1059, 3, 3, 0.53], [2325, 2, 3, 0.31], [8157, 80, 4, 0.38], [10254, 1, 3, 0.24], [10668, 3, 3, 0.23], [11290, 2, 3, 1.3], [6872, 29, 3, 0.19], [11156, 11, 7, 0.16], [8058, 3, 4, 0.45], [1120, 3, 6, 0.18], [72, 1, 3, 0.13], [405, 3, 4, 0.56], [1744, 1, 3, 0.32], [21691, 3, 5, 0.53], [23031, 3, 3, 0.31], [1139, 3, 3, 0.15], [951, 4, 3, 0.23], [12656, 1, 3, 0.46], [4326, 1, 3, 0.29], [11891, 3, 4, 0.34], [11867, 3, 4, 0.26], [790, 2, 3, 0.14], [19686, 1, 3, 0.17], [1853, 1, 3, 0.24], [12430, 3, 3, 0.35], [21481, 7, 5, 0.39], [2318, 2, 3, 0.18], [19964, 25, 3, 0.23], [10719, 29, 3, 0.24], [7250, 3, 3, 0.16], [2916, 1, 3, 0.18], [12917, 3, 3, 0.12], [18, 1, 3, 0.22], [1683, 1, 3, 0.25], [12723, 1, 3, 0.25], [11856, 1, 3, 0.3], [3610, 24, 3, 0.23], [10906, 3, 12, 0.19], [13293, 3, 4, 0.3], [11962, 1, 3, 0.2], [71, 1, 3, 0.19], [6036, 23, 4, 0.51], [12236, 3, 5, 0.15], [13105, 3, 3, 1.05], [19331, 2, 3, 0.16], [9239, 29, 3, 0.24], [9967, 2, 3, 0.41], [8157, 29, 3, 0.38], [21468, 7, 4, 0.28], [6270, 23, 17, 0.14], [1601, 68, 3, 0.55], [11528, 10, 6, 0.15], [11766, 1, 3, 0.28], [20956, 7, 6, 0.31], [2821, 3, 7, 0.38], [10462, 3, 4, 0.37], [12262, 3, 3, 0.13], [12054, 2, 6, 0.38], [470, 1, 3, 0.11], [9910, 29, 4, 0.18], [10083, 23, 8, 0.17], [11412, 29, 3, 0.13], [8286, 1, 3, 0.17], [21820, 2, 3, 0.18], [8945, 1, 5, 0.0], [13273, 29, 4, 0.3], [13106, 3, 4, 1.05], [12594, 7, 3, 0.14], [22922, 3, 3, 0.47], [2308, 25, 3, 0.37], [13244, 1, 19, 0.17], [4232, 29, 3, 0.41], [8896, 1, 3, 0.48], [13258, 25, 4, 0.36], [5343, 1, 3, 0.27], [17, 1, 3, 0.22], [515, 24, 3, 0.19], [2105, 3, 7, 0.17], [3896, 25, 3, 0.32], [11722, 3, 4, 1.24], [9797, 3, 7, 0.3], [10507, 2, 3, 0.18], [22565, 3, 4, 0.42], [13325, 3, 4, 0.25], [11527, 10, 5, 0.15], [13272, 29, 4, 0.29], [1432, 2, 3, 0.0], [11304, 2, 3, 1.3], [949, 10, 3, 0.34], [22571, 1, 3, 0.04], [5341, 16, 3, 0.28], [5110, 1, 3, 0.36], [80, 1, 3, 0.21], [9085, 25, 4, 0.38], [5342, 23, 6, 0.19], [3024, 3, 3, 0.24], [1324, 1, 3, 0.21], [21689, 3, 5, 0.53], [8926, 1, 3, 0.16], [3976, 3, 11, 0.43], [20939, 3, 4, 0.38], [19583, 1, 3, 0.0], [10172, 1, 3, 0.17], [13036, 3, 5, 0.55], [5188, 1, 3, 0.29], [20188, 3, 3, 0.56], [22874, 3, 3, 0.28], [1514, 1, 3, 0.15], [10176, 29, 4, 0.36], [1602, 68, 3, 0.54], [6035, 23, 4, 0.51], [8155, 25, 3, 0.3], [1406, 2, 3, 0.22], [10639, 2, 3, 0.49], [9910, 25, 3, 0.18], [380, 2, 3, 0.08], [10574, 1, 3, 0.3], [426, 15, 3, 0.16], [1407, 2, 3, 0.0], [975, 3, 3, 0.15], [12426, 3, 4, 0.25], [19878, 1, 3, 0.15], [23039, 10, 5, 1.12], [1087, 1, 3, 0.12], [20196, 2, 3, 0.47], [10273, 3, 5, 0.29], [11402, 1, 3, 0.23], [23960, 3, 3, 0.25], [3021, 68, 3, 0.21], [10640, 3, 4, 0.19], [5646, 2, 3, 0.2], [8089, 1, 5, 0.44], [7629, 1, 3, 0.29], [9672, 3, 3, 0.27], [11056, 3, 3, 1.27], [9182, 1, 3, 0.4], [4043, 25, 4, 0.22], [11902, 2, 3, 0.24], [344, 25, 3, 0.26], [8051, 2, 3, 0.21], [12614, 1, 3, 0.23], [12722, 2, 3, 0.38], [9671, 3, 4, 0.27], [3898, 3, 3, 0.25], [3988, 4, 3, 0.39], [7360, 3, 3, 0.2], [10716, 3, 4, 0.13], [12493, 23, 5, 0.15], [13294, 3, 3, 0.3], [9239, 25, 3, 0.24], [9373, 5, 3, 0.58], [10455, 29, 3, 0.13], [5851, 1, 4, 0.19], [9380, 1, 4, 0.19], [12502, 1, 4, 0.53], [10670, 3, 3, 0.22], [3896, 29, 4, 0.33], [13299, 1, 3, 0.3], [21710, 3, 7, 0.27], [8688, 14, 5, 0.27], [2419, 29, 4, 0.24], [23275, 2, 3, 0.27], [8923, 29, 4, 0.17], [6628, 3, 3, 0.22], [2194, 1, 5, 0.13], [11184, 1, 7, 0.83], [3906, 14, 5, 0.29], [12586, 3, 4, 0.34], [12239, 3, 3, 0.13], [3599, 29, 3, 0.0], [590, 16, 3, 0.16], [19685, 1, 3, 0.0], [5452, 1, 3, 0.25], [1120, 1, 4, 0.18], [20966, 3, 3, 0.58], [9209, 29, 3, 0.32], [12249, 14, 3, 0.14], [2287, 25, 4, 0.35], [9150, 23, 4, 0.19], [408, 3, 4, 0.56], [963, 3, 3, 0.37], [12240, 14, 3, 0.13], [1095, 2, 4, 0.18], [5340, 23, 5, 0.2], [11152, 11, 6, 0.18], [2695, 3, 5, 0.25], [3599, 25, 4, 0.89], [2365, 3, 3, 0.28], [1082, 1, 3, 0.39], [12654, 1, 3, 0.46], [10409, 1, 3, 0.3], [9820, 3, 3, 0.52], [11494, 1, 3, 0.19], [24130, 1, 6, 0.17], [12040, 68, 3, 0.19], [10635, 2, 3, 0.49], [20963, 3, 4, 0.58], [22029, 7, 16, 0.52], [11886, 2, 4, 0.27], [2111, 3, 6, 0.19], [9087, 29, 3, 0.4], [5517, 1, 3, 0.3], [3986, 4, 3, 0.35], [19964, 29, 3, 0.23], [9778, 1, 3, 0.29], [10897, 1, 9, 0.55], [19883, 1, 3, 0.16], [21822, 2, 3, 0.18], [20498, 1, 3, 0.0], [8963, 1, 3, 0.27], [22877, 7, 3, 0.29], [22871, 7, 3, 0.28], [12663, 1, 3, 0.15], [109, 4, 3, 0.17], [11154, 11, 6, 0.16], [11055, 3, 3, 1.27], [936, 3, 4, 0.12], [3598, 15, 3, 0.2], [22038, 7, 8, 0.31], [10638, 2, 3, 0.49], [1052, 2, 3, 0.25], [13268, 29, 3, 0.43], [12418, 1, 3, 0.36], [10529, 29, 7, 0.41], [11643, 1, 3, 0.31], [10530, 80, 3, 0.41], [12335, 2, 3, 0.2], [9087, 25, 4, 0.4], [21459, 7, 6, 0.5], [22126, 2, 3, 0.16], [334, 25, 3, 0.08], [10616, 1, 3, 0.52], [3994, 1, 3, 0.15], [3430, 16, 3, 0.31], [12791, 1, 4, 0.22], [3230, 1, 3, 0.23], [23030, 3, 3, 0.29], [354, 2, 3, 0.17], [5812, 3, 4, 0.3], [1743, 1, 3, 0.32], [407, 3, 4, 0.56], [7191, 1, 4, 0.55], [22037, 7, 6, 0.31], [19968, 25, 3, 0.28], [1051, 2, 3, 0.25], [11054, 3, 4, 1.09], [471, 1, 3, 0.17], [6630, 3, 3, 0.25], [13488, 1, 3, 0.34], [11895, 1, 3, 0.15], [791, 2, 3, 0.15], [11659, 3, 3, 0.5], [19965, 25, 3, 0.2], [3908, 7, 5, 0.27], [1409, 15, 3, 0.18], [2859, 16, 3, 0.27], [11581, 29, 12, 0.48], [13037, 3, 3, 0.55], [22920, 1, 3, 0.36], [22321, 1, 3, 0.17], [8281, 2, 3, 0.7], [12924, 1, 3, 0.15], [12056, 2, 3, 0.38], [2507, 2, 3, 0.1], [10080, 3, 3, 0.0], [19343, 2, 3, 0.21], [12658, 1, 3, 0.54], [13259, 25, 3, 0.52], [11779, 1, 7, 0.51], [3670, 2, 6, 0.53], [5577, 3, 3, 0.52], [22236, 1, 3, 0.22], [392, 4, 3, 0.36], [2013, 2, 3, 0.39], [8943, 1, 3, 0.28], [14040, 3, 3, 0.52], [12230, 3, 3, 0.19], [1511, 3, 5, 0.16], [12332, 2, 3, 0.23], [2934, 1, 3, 0.22], [9830, 3, 3, 0.18], [11022, 3, 3, 0.4], [9777, 1, 3, 0.26], [11529, 10, 5, 0.15], [10666, 3, 3, 0.22], [11413, 29, 3, 0.13], [23380, 25, 3, 0.18], [3984, 3, 7, 0.43], [20965, 3, 3, 0.58], [13113, 1, 3, 0.18], [13, 1, 3, 0.18], [1414, 1, 3, 0.21], [2985, 3, 3, 0.3], [12912, 3, 3, 0.15], [2419, 80, 4, 0.24], [6966, 3, 3, 0.45], [1059, 1, 3, 0.0], [21708, 3, 7, 0.33], [5007, 1, 3, 0.23], [426, 16, 3, 0.15], [1706, 25, 3, 0.18], [21088, 7, 5, 0.18], [19965, 29, 3, 0.21], [2103, 16, 3, 0.2], [13114, 1, 3, 0.17], [2099, 2, 3, 0.29], [12508, 1, 3, 0.33], [21010, 2, 5, 0.47], [2326, 2, 3, 0.0], [3392, 1, 3, 0.5], [10279, 3, 3, 0.62], [2168, 3, 3, 0.43], [21707, 3, 6, 0.0], [11894, 2, 3, 0.3], [1742, 1, 3, 0.34], [23038, 10, 5, 0.7], [12923, 1, 3, 0.15], [1055, 2, 3, 0.27], [23796, 2, 6, 0.14], [9613, 1, 3, 0.26], [9841, 1, 3, 0.22], [14029, 3, 3, 0.3], [19581, 1, 3, 0.0], [8023, 1, 3, 0.26], [22125, 2, 3, 0.16], [12364, 3, 4, 0.74], [10278, 3, 3, 0.5], [2108, 1, 3, 0.16], [21003, 2, 3, 0.47], [12379, 1, 3, 0.58], [11857, 1, 3, 0.3], [9154, 23, 4, 0.22], [8931, 2, 3, 0.71], [8085, 1, 3, 0.48], [12585, 3, 3, 0.34], [12913, 3, 3, 0.11], [2100, 25, 3, 0.24], [11339, 3, 3, 0.45], [20952, 3, 3, 0.31], [11057, 3, 3, 1.25], [14039, 3, 4, 0.18], [3053, 3, 3, 0.38], [8361, 1, 3, 0.22], [2418, 29, 3, 0.41], [21482, 7, 3, 0.39], [21745, 2, 3, 0.0], [2196, 25, 3, 0.24], [22708, 1, 3, 0.36], [6356, 2, 3, 0.16], [11322, 3, 3, 0.4], [9781, 1, 3, 0.28], [21091, 7, 3, 0.18], [8923, 25, 4, 0.17], [1648, 1, 3, 0.45], [19330, 1, 3, 0.19], [12871, 1, 3, 0.8], [11213, 4, 3, 0.77], [9084, 3, 3, 0.35], [11155, 11, 5, 0.16], [19344, 2, 3, 0.23], [12635, 2, 3, 0.36], [12613, 1, 3, 0.25], [3429, 1, 3, 0.2], [6360, 10, 6, 0.17], [23962, 3, 3, 0.25], [13109, 3, 5, 1.07], [4372, 1, 3, 0.34], [9611, 12, 3, 0.31], [19969, 25, 3, 0.28], [11215, 1, 3, 0.23], [21461, 7, 6, 0.5], [11559, 29, 6, 0.26], [11226, 1, 3, 0.11], [8188, 10, 6, 0.2], [11327, 3, 3, 0.39], [3551, 3, 3, 0.22], [344, 2, 3, 0.27], [11634, 1, 3, 0.16], [5811, 3, 3, 0.26], [96, 1, 3, 0.0], [21320, 7, 8, 0.5], [7084, 1, 3, 0.0], [3389, 1, 3, 0.49], [19332, 2, 3, 0.2], [12366, 3, 4, 0.75], [2418, 80, 3, 0.41], [973, 1, 3, 0.0], [22884, 3, 4, 0.29], [12334, 2, 3, 0.22], [2161, 1, 3, 0.17], [1053, 729, 3, 0.13], [7362, 3, 3, 0.19], [2935, 1, 3, 0.17], [12952, 21, 3, 0.68], [5849, 1, 3, 0.2], [12162, 2, 3, 0.2], [2188, 2, 5, 0.18], [5852, 1, 3, 0.18], [12930, 2, 3, 0.16], [9485, 2, 3, 0.22], [6967, 3, 3, 0.99], [345, 3, 4, 0.4], [21817, 2, 3, 0.18], [8872, 1, 3, 0.18], [9430, 1, 3, 0.28], [5660, 2, 3, 0.79], [13853, 3, 3, 0.28], [13854, 3, 3, 0.3], [19340, 2, 3, 0.19], [8283, 1, 3, 0.18], [9209, 25, 3, 0.32], [7457, 1, 3, 0.21], [12494, 3, 3, 0.16], [22879, 3, 3, 0.28], [2411, 29, 3, 0.27], [307, 2, 3, 0.3], [12031, 2, 3, 0.41], [21693, 3, 4, 1.07], [1728, 1, 3, 0.29], [858, 1, 3, 0.25], [5666, 2, 4, 0.38], [11105, 3, 3, 0.17], [3989, 3, 7, 0.43], [11157, 1, 3, 0.17], [5368, 3, 3, 0.39], [3987, 3, 6, 0.45], [13855, 3, 3, 0.3], [21319, 7, 9, 0.5], [922, 1, 3, 0.13], [1706, 2, 3, 0.18], [5813, 3, 4, 0.27], [2100, 2, 3, 0.24], [8156, 25, 3, 0.3], [21709, 3, 6, 0.22], [3903, 14, 5, 0.36], [4966, 2, 3, 0.16], [9489, 2, 3, 0.22], [20964, 3, 5, 0.58], [9623, 3, 5, 0.22], [6627, 3, 3, 0.24], [19882, 1, 3, 0.16], [10170, 1, 3, 0.26], [2857, 1, 3, 0.19], [22908, 3, 4, 0.2], [19966, 25, 3, 0.18], [12576, 3, 3, 0.34], [12645, 1, 3, 0.2], [21688, 3, 4, 0.89], [11328, 3, 3, 0.39], [8167, 7, 3, 0.4], [5848, 1, 3, 0.2], [688, 3, 3, 0.23], [21798, 1, 4, 0.23], [13295, 3, 3, 0.3], [12587, 3, 4, 0.34], [2417, 80, 3, 0.37], [3905, 14, 4, 0.0], [214, 1, 3, 0.17], [2190, 1, 3, 0.17], [9149, 2, 3, 0.17], [21454, 2, 3, 0.16], [962, 10, 7, 0.18], [2411, 80, 5, 0.27], [180, 15, 3, 0.26], [11967, 1, 3, 0.19], [2104, 1, 3, 0.19], [11611, 2, 3, 0.27], [2421, 29, 3, 0.18], [8360, 1, 3, 0.22], [19375, 3, 3, 0.16], [2366, 3, 3, 0.29], [3386, 1, 3, 0.48], [5854, 1, 3, 0.16], [13393, 23, 4, 0.14], [11899, 2, 3, 0.22], [11338, 7, 3, 0.31], [3477, 2, 3, 0.31], [11020, 3, 3, 0.39], [10529, 80, 3, 0.41], [22323, 1, 3, 0.17], [14037, 3, 11, 0.13], [11321, 3, 3, 0.41], [12333, 2, 3, 0.23], [11526, 1, 3, 0.13], [1233, 1, 3, 0.2], [21315, 3, 3, 0.17], [12648, 1, 4, 0.47], [21684, 3, 5, 0.41], [21773, 2, 3, 0.18], [9487, 2, 3, 0.22], [13494, 3, 4, 0.57], [11289, 2, 3, 1.3], [10722, 2, 3, 0.16], [12430, 1, 3, 0.36], [336, 16, 3, 0.16], [12029, 2, 3, 0.41], [11635, 1, 3, 0.15], [3961, 1, 3, 0.19], [2743, 3, 3, 0.21], [3609, 24, 3, 0.66], [11559, 80, 3, 0.26], [8280, 2, 4, 0.7], [947, 16, 3, 0.26], [12925, 1, 5, 0.15], [19582, 1, 3, 0.0], [12980, 1, 3, 0.22], [9207, 25, 4, 0.24], [20191, 1, 4, 0.15], [14, 1, 3, 0.18], [8681, 3, 3, 0.18], [10780, 3, 3, 0.78], [3552, 3, 3, 0.22], [12538, 3, 4, 0.58], [21478, 7, 5, 0.34], [10527, 3, 9, 0.16], [333, 25, 4, 0.07], [13257, 29, 5, 0.35], [20958, 3, 3, 0.29], [19361, 23, 4, 0.21], [110, 1, 3, 0.0], [2608, 1, 3, 0.13], [9253, 3, 3, 0.26], [12492, 3, 3, 0.22], [11420, 3, 3, 0.27], [19346, 2, 3, 0.23], [11411, 29, 3, 0.13], [8934, 2, 3, 0.62], [1116, 1, 3, 0.27], [23230, 3, 3, 0.22], [9208, 25, 3, 0.34], [10986, 2, 3, 0.15], [2417, 29, 3, 0.36], [9153, 23, 4, 0.24], [12238, 3, 3, 0.77], [2495, 2, 3, 0.3], [8907, 25, 4, 0.16], [12577, 3, 3, 0.34], [19335, 2, 3, 0.19], [3379, 3, 3, 0.38], [12724, 1, 3, 0.25], [22407, 1, 3, 0.19], [10822, 7, 5, 0.37], [11901, 2, 3, 0.21], [5647, 2, 3, 0.17], [633, 15, 3, 0.0], [22865, 7, 5, 0.25], [21012, 2, 3, 0.47], [11960, 1, 4, 0.14], [12513, 1, 3, 0.26], [19971, 3, 3, 0.26], [11509, 2, 3, 1.03], [61, 1, 3, 0.0], [10994, 2, 3, 0.25], [20190, 3, 3, 0.58], [7673, 7, 8, 0.12], [1722, 2, 3, 0.15], [12030, 2, 3, 0.41], [19366, 2, 3, 0.17], [13490, 1, 3, 0.33], [23494, 3, 3, 0.13], [3553, 3, 3, 0.22], [20198, 2, 3, 0.47], [8944, 1, 3, 0.18], [3915, 15, 3, 0.14], [12024, 2, 3, 0.51], [9608, 1, 3, 0.26], [9486, 2, 3, 0.22], [8189, 10, 5, 0.2], [2859, 1, 3, 0.27], [12588, 3, 3, 0.34], [4926, 12, 4, 0.23], [12630, 10, 4, 0.24], [2287, 29, 3, 0.35], [8907, 29, 3, 0.16], [9342, 2, 4, 0.7], [1513, 3, 5, 0.15], [22706, 1, 3, 0.36], [11687, 1, 3, 0.11], [12458, 1, 3, 0.79], [8155, 2, 3, 0.3], [19982, 2, 3, 0.15], [9480, 2, 3, 0.18], [9488, 2, 3, 0.23], [2406, 80, 5, 0.35], [10175, 1, 3, 0.08], [10414, 1, 3, 0.18], [10985, 2, 3, 0.15], [1619, 1, 3, 0.2], [948, 16, 3, 0.13], [21752, 2, 3, 0.0], [19364, 23, 4, 0.2], [2362, 25, 3, 0.34], [3558, 15, 3, 0.95], [9689, 1, 3, 0.5], [21269, 1, 3, 0.0], [2196, 2, 3, 0.0], [7886, 1, 3, 0.16], [11048, 1, 4, 0.41], [473, 1, 3, 0.12], [12994, 3, 7, 0.2], [9153, 2, 3, 0.22], [12633, 2, 3, 0.65], [23544, 3, 4, 0.26], [1060, 1, 4, 0.0], [5853, 1, 3, 0.19], [23493, 3, 3, 0.13], [11021, 3, 3, 0.4], [23546, 3, 4, 0.25], [11325, 3, 3, 0.39], [9207, 29, 3, 0.24], [334, 2, 3, 0.0], [12250, 14, 3, 0.14], [23380, 29, 3, 0.18], [192, 3, 10, 0.29], [11613, 2, 3, 0.27], [1705, 25, 3, 0.18], [20317, 3, 3, 0.18], [2367, 3, 3, 0.28], [10528, 3, 4, 0.13], [19970, 25, 4, 0.21], [12993, 3, 7, 0.2], [20316, 3, 3, 0.18], [20978, 1, 3, 0.4], [13267, 29, 4, 0.26], [12517, 2, 3, 0.38], [11337, 7, 3, 0.44], [10384, 3, 3, 0.13], [8050, 2, 3, 0.22], [10532, 14, 5, 0.17], [13943, 137, 4, 0.4], [2504, 10, 7, 0.13], [12674, 1, 3, 0.23], [11719, 1, 3, 0.0], [23231, 3, 5, 0.21], [20308, 23, 5, 0.21], [6540, 25, 3, 0.36], [2836, 3, 6, 0.23], [4674, 15, 3, 0.78], [11093, 1, 3, 0.15], [10150, 3, 8, 0.18], [12237, 3, 3, 0.77], [6803, 3, 3, 0.32], [1260, 1, 5, 0.0], [3985, 3, 8, 0.42], [12260, 3, 4, 0.43], [20306, 23, 5, 0.21], [2364, 3, 3, 0.28], [2744, 3, 3, 0.23], [9779, 1, 3, 0.29], [385, 1, 3, 0.49], [12309, 2, 3, 0.32], [11860, 3, 3, 0.25], [19966, 29, 3, 0.18], [8928, 2, 3, 0.71], [10048, 1, 3, 0.17], [13396, 3, 3, 0.14], [2217, 15, 3, 0.49], [9070, 1, 3, 0.16], [8132, 10, 9, 0.16], [2217, 1, 3, 0.48], [13489, 1, 3, 0.34], [19337, 2, 3, 0.22], [11735, 3, 3, 0.28], [3902, 14, 3, 0.0], [21712, 1, 3, 0.17], [20314, 3, 3, 0.18], [12340, 2, 3, 0.33], [3134, 3, 6, 0.2], [9250, 3, 4, 0.5], [5541, 1, 3, 0.17], [9088, 25, 3, 0.23], [9154, 2, 3, 0.22], [12426, 1, 3, 0.25], [23331, 1, 3, 0.18], [948, 1, 3, 0.13], [1512, 3, 4, 0.14], [10149, 1, 3, 0.32], [10396, 3, 3, 0.2], [10667, 3, 3, 0.21], [10898, 1, 4, 0.17], [12232, 3, 3, 0.17], [803, 3, 3, 0.2], [947, 1, 3, 0.26], [23491, 3, 3, 0.13], [20920, 3, 3, 0.26], [19358, 23, 4, 0.21], [13326, 3, 3, 0.17], [8106, 10, 3, 0.27], [8285, 1, 3, 0.2], [1433, 1, 3, 0.69], [8058, 1, 3, 0.45], [19362, 23, 4, 0.21], [8638, 3, 3, 0.32], [3475, 2, 3, 0.37], [22893, 3, 3, 0.32], [2406, 29, 4, 0.35], [10146, 1, 4, 0.17], [11641, 1, 3, 0.31], [3388, 1, 3, 0.69], [10586, 3, 3, 0.22], [13027, 3, 4, 0.49], [19352, 2, 3, 0.2], [10525, 3, 4, 0.32], [4866, 1, 3, 0.2], [19369, 2, 3, 0.15], [3977, 3, 3, 0.54], [4967, 23, 7, 0.18], [1814, 2, 3, 0.16], [12641, 1, 3, 0.27], [2308, 29, 3, 0.37], [6023, 1, 3, 0.23], [2188, 1, 4, 0.18], [5540, 1, 3, 0.17], [8279, 2, 3, 0.7], [8363, 1, 3, 0.2], [12634, 2, 3, 0.0], [19880, 1, 3, 0.16], [62, 1, 4, 0.35], [5652, 2, 3, 0.18], [2055, 1, 3, 0.0], [4927, 12, 4, 0.22], [5111, 1, 3, 0.33], [22590, 1, 3, 0.18], [586, 1, 3, 0.24], [8968, 1, 3, 0.24], [11732, 3, 3, 0.47], [11212, 4, 3, 0.77], [1880, 4, 3, 0.92], [13300, 3, 4, 0.37], [8191, 10, 5, 0.19], [20305, 23, 4, 0.21], [10582, 3, 3, 0.33], [9996, 80, 3, 0.46], [23339, 3, 3, 0.18], [2403, 3, 3, 0.19], [12516, 2, 3, 0.38], [11949, 3, 3, 0.3], [11968, 1, 3, 0.1], [2669, 1, 3, 0.57], [512, 24, 3, 1.02], [23961, 1, 3, 0.26], [23920, 2, 3, 0.33], [21946, 1, 3, 0.12], [21686, 1, 3, 0.0], [10413, 1, 3, 0.0], [24127, 3, 4, 0.19], [11485, 1, 3, 0.0], [1070, 7, 6, 0.35], [22891, 3, 4, 0.2], [9088, 29, 3, 0.23], [2222, 10, 4, 0.2], [8660, 1, 3, 0.24], [11859, 1, 3, 0.3], [13486, 1, 4, 0.34], [10980, 2, 3, 0.26], [9620, 3, 3, 0.29], [9780, 1, 3, 0.29], [10981, 2, 3, 0.28], [3421, 3</t>
+  </si>
+  <si>
+    <t>[[305, 2, 19, 0.94], [8672, 2, 29, 0.63], [326, 2, 24, 0.37], [130, 1, 13, 0.32], [3, 2, 17, 0.2], [2049, 3, 28, 0.3], [205, 2, 11, 0.07], [6935, 2, 42, 1.1], [144, 2, 13, 1.02], [143, 2, 15, 0.69], [589, 2, 24, 0.0], [2327, 2, 19, 0.75], [145, 2, 13, 0.85], [8915, 2, 18, 0.0], [146, 2, 12, 1.01], [75, 2, 10, 0.57], [206, 2, 8, 0.07], [593, 2, 22, 0.43], [2778, 2, 15, 0.74], [151, 1, 16, 0.39], [2328, 2, 15, 0.75], [12721, 2, 19, 0.68], [8675, 2, 19, 0.63], [7885, 4, 10, 0.26], [20252, 2, 8, 0.54], [141, 2, 11, 0.54], [8648, 2, 12, 0.87], [2050, 3, 11, 0.37], [1776, 1, 10, 0.76], [6936, 2, 24, 1.1], [5151, 2, 8, 0.8], [2054, 3, 10, 0.37], [8650, 2, 11, 0.87], [362, 2, 12, 0.47], [9507, 3, 6, 0.21], [2057, 3, 10, 0.37], [2055, 3, 9, 0.37], [1777, 1, 10, 0.77], [12224, 1, 9, 0.19], [8938, 2, 8, 0.0], [10, 2, 13, 0.38], [248, 1, 7, 0.27], [76, 2, 7, 0.51], [1446, 2, 7, 0.0], [61, 3, 7, 0.47], [140, 2, 7, 0.36], [7004, 1, 8, 0.22], [990, 2, 10, 0.19], [8649, 2, 8, 0.87], [74, 1, 8, 1.35], [20258, 2, 7, 0.52], [410, 1, 6, 1.11], [13967, 1, 8, 0.55], [1492, 1, 11, 0.74], [88, 10, 21, 0.6], [7886, 4, 8, 0.31], [5081, 2, 10, 0.36], [1429, 2, 7, 0.0], [83, 2, 7, 0.32], [1006, 2, 10, 0.44], [1007, 2, 17, 0.15], [2991, 3, 6, 0.84], [1654, 2, 4, 0.36], [3889, 1, 8, 0.28], [12225, 1, 7, 0.19], [307, 2, 6, 0.94], [7005, 1, 7, 0.22], [411, 2, 6, 0.07], [57, 1, 7, 0.39], [378, 2, 8, 0.86], [1504, 2, 12, 0.96], [1656, 2, 6, 0.36], [3891, 1, 4, 0.32], [10825, 21, 17, 0.46], [13028, 3, 9, 0.88], [11234, 2, 12, 0.47], [5005, 1, 25, 0.51], [3893, 1, 6, 0.33], [13965, 1, 7, 0.47], [10149, 3, 38, 0.52], [7084, 3, 4, 0.51], [412, 1, 7, 0.58], [201, 3, 6, 0.56], [167, 3, 8, 0.49], [11737, 2, 6, 0.45], [21798, 1, 7, 0.34], [361, 2, 8, 0.54], [19925, 2, 7, 0.99], [10574, 3, 11, 0.72], [8853, 2, 19, 1.1], [345, 3, 8, 0.56], [8939, 2, 6, 0.0], [7887, 4, 6, 0.29], [23, 1, 4, 0.06], [1124, 2, 13, 0.46], [5208, 3, 14, 0.26], [6394, 7, 43, 0.0], [11404, 2, 15, 0.35], [168, 3, 9, 0.51], [413, 1, 6, 0.59], [161, 3, 14, 0.57], [5812, 3, 10, 0.69], [152, 21, 4, 0.13], [94, 4, 7, 0.81], [346, 1, 7, 0.51], [346, 3, 6, 0.52], [13962, 1, 6, 0.51], [998, 2, 7, 0.25], [20256, 2, 4, 0.64], [13964, 1, 6, 0.53], [20927, 1, 6, 0.22], [997, 2, 7, 0.25], [35, 1, 4, 0.26], [96, 11, 29, 0.41], [1243, 2, 9, 0.59], [25, 1, 4, 0.48], [10148, 1, 7, 0.34], [84, 2, 6, 0.38], [229, 1, 4, 0.75], [9760, 29, 8, 0.35], [9827, 3, 6, 0.4], [308, 1, 23, 0.76], [8651, 2, 6, 0.83], [33, 1, 10, 0.26], [214, 3, 18, 0.37], [159, 3, 11, 0.31], [335, 3, 21, 0.74], [2049, 1, 4, 0.3], [1126, 2, 7, 0.41], [1490, 1, 7, 0.49], [6569, 7, 35, 0.0], [45, 2, 12, 2.34], [8274, 3, 8, 0.32], [3478, 2, 6, 0.65], [11490, 1, 4, 0.66], [13968, 1, 6, 0.49], [11739, 2, 6, 0.57], [6158, 2, 12, 0.5], [5086, 1, 9, 0.0], [2775, 2, 7, 0.74], [12722, 2, 10, 0.68], [79, 1, 6, 0.46], [432, 3, 6, 0.56], [996, 2, 7, 1.02], [5209, 3, 10, 0.26], [1163, 3, 10, 0.41], [1413, 15, 4, 0.41], [10993, 2, 11, 0.48], [11811, 1, 8, 0.65], [5946, 1, 4, 0.88], [2336, 3, 12, 0.39], [22179, 1, 6, 0.62], [8945, 3, 6, 0.95], [12870, 1, 7, 0.96], [7036, 1, 7, 0.97], [8677, 3, 8, 0.94], [9784, 1, 4, 0.54], [995, 2, 7, 1.17], [11489, 1, 4, 0.66], [14037, 3, 11, 0.32], [1655, 2, 4, 0.8], [59, 3, 14, 0.65], [8635, 3, 8, 0.32], [107, 2, 9, 0.62], [950, 1, 11, 0.52], [1767, 25, 8, 0.44], [414, 1, 6, 0.59], [9690, 1, 4, 0.59], [21269, 3, 6, 2.02], [3495, 3, 24, 0.55], [10631, 2, 6, 1.03], [20255, 2, 7, 0.75], [142, 2, 7, 0.54], [6220, 7, 15, 0.0], [5811, 3, 7, 0.61], [6395, 7, 23, 0.0], [9069, 1, 4, 1.18], [972, 3, 8, 0.43], [523, 2, 7, 0.54], [490, 1, 8, 0.36], [3980, 4, 7, 0.69], [11116, 1, 10, 0.29], [5005, 3, 11, 0.51], [416, 1, 4, 0.59], [1070, 7, 20, 0.51], [11808, 1, 8, 0.53], [415, 1, 6, 0.59], [1080, 3, 6, 2.42], [418, 2, 6, 0.47], [95, 3, 42, 1.93], [8898, 3, 9, 1.33], [161, 1, 12, 0.57], [97, 11, 29, 0.69], [336, 15, 4, 0.32], [34, 1, 4, 0.63], [126, 2, 4, 0.48], [3670, 2, 11, 1.05], [39, 1, 4, 0.63], [110, 4, 6, 0.91], [24, 1, 4, 0.21], [2497, 2, 6, 1.14], [8121, 3, 7, 0.28], [22316, 3, 8, 0.58], [105, 3, 4, 0.32], [60, 3, 12, 0.53], [5813, 3, 7, 0.64], [856, 1, 4, 0.31], [11454, 2, 19, 3.57], [8943, 3, 6, 0.56], [38, 1, 4, 0.63], [5513, 2, 8, 0.34], [11954, 1, 6, 0.55], [6097, 80, 5, 0.92], [1766, 25, 7, 0.38], [147, 1, 6, 0.75], [13034, 3, 10, 1.07], [6805, 1, 7, 0.56], [1414, 15, 4, 0.41], [417, 2, 8, 0.54], [9829, 3, 4, 0.34], [22247, 2, 19, 0.68], [21793, 1, 15, 1.25], [11085, 2, 9, 0.47], [20498, 3, 8, 0.83], [82, 2, 4, 0.36], [974, 3, 7, 0.7], [114, 3, 4, 0.32], [6097, 29, 11, 0.92], [5584, 3, 4, 1.29], [439, 1, 6, 0.8], [20498, 1, 8, 0.0], [9372, 1, 15, 0.25], [330, 3, 6, 1.83], [7567, 3, 4, 0.54], [14017, 3, 6, 0.21], [2703, 3, 7, 0.54], [159, 1, 12, 0.29], [19931, 1, 8, 0.38], [6398, 332, 14, 0.0], [11767, 1, 6, 0.02], [8104, 1, 8, 0.29], [10944, 7, 15, 0.0], [6098, 80, 4, 0.78], [27, 1, 4, 0.14], [11671, 1, 10, 0.81], [1519, 3, 21, 0.36], [6221, 7, 12, 0.0], [6497, 1, 10, 0.74], [823, 1, 10, 0.81], [1091, 1, 4, 0.36], [20649, 1, 4, 0.88], [3456, 3, 6, 0.42], [584, 2, 4, 0.55], [11674, 1, 6, 0.0], [8283, 2, 8, 0.36], [20486, 3, 7, 1.03], [62, 3, 17, 0.59], [9691, 1, 4, 0.59], [955, 2, 8, 0.83], [8286, 2, 7, 0.34], [9964, 2, 6, 0.91], [8120, 3, 6, 0.57], [2424, 80, 8, 0.89], [2160, 68, 4, 0.52], [11738, 2, 4, 0.58], [13260, 29, 4, 0.61], [11794, 2, 8, 0.25], [71, 15, 4, 0.31], [21059, 1, 8, 0.66], [6098, 29, 8, 0.78], [11914, 1, 13, 0.57], [972, 1, 4, 0.43], [5086, 3, 6, 2.87], [524, 1, 4, 0.58], [9828, 3, 4, 0.4], [22317, 3, 8, 0.6], [2776, 2, 7, 0.74], [170, 3, 6, 0.87], [14018, 3, 6, 0.2], [12369, 3, 12, 1.35], [8676, 2, 13, 0.63], [22554, 10, 17, 0.52], [148, 1, 6, 0.75], [9049, 2, 4, 0.6], [10172, 3, 12, 0.42], [286, 3, 6, 0.76], [11769, 1, 6, 0.05], [36, 1, 4, 0.63], [1699, 3, 4, 0.68], [2423, 80, 7, 0.77], [434, 2, 13, 0.83], [2331, 1, 4, 0.68], [93, 11, 23, 0.56], [3900, 3, 4, 0.47], [21060, 1, 4, 0.66], [19932, 1, 7, 0.41], [13484, 1, 4, 1.06], [1661, 3, 4, 0.68], [10407, 10, 12, 2.31], [1703, 2, 10, 1.32], [202, 2, 4, 0.46], [2424, 29, 24, 0.89], [107, 7, 10, 0.62], [7558, 3, 4, 0.2], [470, 1, 4, 0.12], [973, 3, 10, 0.62], [583, 2, 4, 0.54], [10406, 10, 13, 0.66], [590, 15, 4, 0.43], [11081, 3, 6, 0.89], [4203, 1, 7, 0.4], [9082, 3, 38, 0.95], [5083, 2, 8, 0.42], [11770, 1, 11, 0.67], [6218, 7, 8, 0.0], [19971, 3, 6, 0.51], [2912, 1, 12, 0.4], [1339, 3, 19, 0.37], [431, 2, 8, 0.22], [952, 4, 4, 1.02], [6525, 7, 17, 0.0], [12269, 2, 4, 0.54], [11953, 1, 6, 1.28], [14041, 3, 6, 0.28], [1767, 2, 5, 0.44], [20486, 1, 4, 0.0], [12223, 1, 4, 0.6], [11087, 2, 8, 0.47], [3892, 1, 4, 0.75], [11504, 2, 7, 0.47], [9613, 1, 4, 0.37], [2726, 3, 6, 0.97], [949, 10, 13, 0.7], [8944, 3, 4, 0.33], [40, 1, 4, 0.14], [2991, 1, 10, 0.84], [6224, 7, 13, 0.0], [957, 2, 6, 0.5], [2878, 1, 4, 1.05], [26, 1, 4, 0.14], [9785, 1, 4, 0.54], [5165, 1, 8, 0.39], [399, 24, 4, 0.91], [9065, 2, 6, 0.26], [5734, 2, 4, 0.19], [10780, 10, 6, 1.44], [12764, 2, 8, 0.56], [11088, 2, 7, 0.47], [11681, 2, 12, 1.65], [991, 2, 4, 0.55], [3429, 15, 4, 0.39], [406, 3, 11, 1.12], [6222, 7, 10, 0.0], [18, 1, 4, 0.37], [9786, 1, 4, 0.54], [3840, 1, 6, 0.42], [8945, 1, 6, 0.0], [6396, 7, 11, 0.0], [11089, 1, 6, 1.37], [2109, 3, 16, 0.44], [9081, 3, 16, 0.7], [3981, 3, 22, 0.87], [1604, 68, 4, 0.53], [11952, 1, 7, 1.36], [12924, 1, 6, 0.3], [8557, 3, 4, 0.45], [66, 15, 4, 0.38], [13033, 3, 8, 1.07], [788, 2, 4, 0.33], [66, 16, 4, 0.38], [12059, 3, 7, 0.55], [12358, 3, 8, 1.32], [3434, 2, 4, 0.8], [11084, 2, 6, 0.47], [10172, 1, 8, 0.42], [3104, 1, 8, 0.9], [3894, 1, 4, 0.89], [13110, 3, 10, 1.35], [2109, 1, 7, 0.44], [12357, 3, 7, 1.33], [6494, 1, 6, 0.75], [2104, 3, 12, 0.38], [1087, 1, 6, 0.64], [7007, 1, 4, 0.29], [2423, 29, 13, 0.77], [6561, 3, 10, 0.0], [6341, 3, 13, 0.0], [3016, 68, 4, 0.29], [6575, 3, 6, 0.82], [10537, 3, 7, 0.35], [8285, 2, 6, 0.4], [389, 4, 4, 0.72], [2854, 21, 10, 0.46], [19047, 3, 6, 0.35], [6398, 1, 4, 0.0], [1765, 25, 6, 0.89], [9796, 3, 14, 0.51], [1895, 3, 6, 0.85], [11586, 1, 11, 0.81], [11510, 3, 8, 0.64], [6799, 7, 11, 0.0], [19583, 3, 6, 0.79], [1667, 3, 4, 0.68], [10409, 10, 11, 0.64], [12355, 3, 6, 1.22], [7182, 1, 6, 0.66], [9797, 3, 14, 0.51], [9783, 1, 4, 0.52], [159, 16, 4, 0.29], [9787, 1, 4, 0.55], [1413, 16, 4, 0.41], [1309, 1, 4, 0.59], [12058, 3, 6, 0.55], [8926, 1, 7, 0.74], [215, 4, 4, 0.96], [7324, 1, 4, 0.41], [6496, 1, 10, 1.57], [5666, 2, 8, 1.01], [11644, 1, 6, 0.58], [5153, 2, 6, 0.38], [11707, 3, 7, 0.73], [4076, 3, 4, 0.86], [288, 3, 6, 0.65], [11903, 332, 14, 0.0], [3475, 2, 4, 0.46], [10514, 3, 6, 0.54], [8904, 7, 21, 0.0], [10410, 10, 11, 2.3], [12362, 3, 7, 1.22], [8897, 3, 6, 1.32], [9854, 1, 4, 0.83], [149, 2, 4, 0.75], [11812, 1, 6, 0.41], [440, 3, 4, 2.7], [2368, 3, 7, 0.28], [9830, 3, 4, 0.35], [3341, 3, 4, 1.1], [2803, 2, 11, 1.05], [9, 1, 4, 0.34], [5434, 1, 4, 0.57], [10408, 10, 9, 0.55], [66, 1, 4, 0.38], [11491, 2, 7, 0.47], [20555, 2, 4, 0.6], [37, 1, 4, 0.63], [6565, 7, 10, 0.0], [471, 1, 6, 0.27], [6207, 7, 10, 0.0], [2103, 15, 4, 0.4], [289, 3, 6, 0.65], [11080, 3, 4, 1.7], [3610, 24, 4, 1.01], [6206, 3, 13, 0.0], [1766, 2, 4, 0.38], [6259, 1, 4, 0.0], [515, 24, 4, 0.9], [424, 11, 14, 0.99], [3048, 3, 6, 0.73], [12361, 3, 6, 1.34], [2729, 3, 4, 0.94], [11813, 1, 6, 0.81], [435, 2, 7, 0.82], [19972, 3, 6, 0.52], [3143, 3, 4, 0.88], [5585, 3, 4, 1.26], [6952, 1, 12, 0.82], [922, 1, 4, 0.16], [13023, 3, 10, 0.69], [506, 1, 4, 0.75], [1622, 1, 8, 0.34], [9998, 80, 5, 0.95], [5076, 1, 10, 1.28], [2859, 15, 4, 0.58], [7705, 2, 11, 0.65], [3982, 3, 20, 0.84], [12923, 1, 6, 0.3], [5165, 2, 10, 0.38], [3049, 3, 6, 0.96], [8891, 1, 6, 0.0], [11689, 2, 6, 0.23], [11856, 1, 4, 0.74], [21003, 2, 7, 0.91], [2369, 3, 7, 0.59], [3674, 2, 6, 0.87], [6342, 3, 11, 0.0], [5435, 1, 4, 0.39], [6864, 1, 4, 0.58], [11771, 1, 6, 0.23], [169, 4, 4, 0.44], [7724, 3, 4, 0.71], [409, 1, 4, 0.4], [11706, 3, 6, 0.69], [12964, 3, 6, 1.15], [7707, 2, 7, 0.65], [11159, 1, 15, 1.33], [563, 2, 4, 0.49], [20196, 2, 7, 0.91], [11967, 1, 4, 0.3], [20969, 3, 8, 1.15], [11687, 2, 6, 0.23], [13263, 29, 4, 0.56], [10716, 3, 7, 0.27], [951, 4, 4, 0.46], [21712, 3, 23, 0.32], [4032, 29, 10, 0.91], [11160, 1, 11, 1.37], [9507, 1, 4, 0.21], [11236, 2, 6, 0.65], [10936, 2, 4, 1.01], [11485, 24, 6, 1.33], [4253, 1, 6, 0.58], [1070, 2, 4, 0.51], [12526, 2, 7, 0.83], [11768, 1, 4, 0.01], [2422, 80, 6, 0.86], [6209, 7, 10, 0.0], [12356, 3, 6, 1.22], [11690, 2, 6, 0.24], [5730, 2, 4, 0.19], [345, 1, 6, 0.0], [6223, 7, 7, 0.0], [615, 2, 21, 0.56], [491, 10, 10, 0.58], [12241, 3, 6, 0.28], [10939, 2, 4, 1.01], [5490, 2, 4, 0.47], [12501, 1, 5, 0.0], [11793, 2, 8, 0.8], [8753, 2, 8, 0.53], [2728, 3, 4, 0.64], [5646, 2, 4, 0.41], [2912, 2, 10, 0.4], [11814, 1, 4, 0.42], [10633, 2, 4, 1.03], [1185, 3, 4, 1.12], [7704, 2, 8, 0.65], [7729, 7, 12, 0.0], [10536, 3, 6, 0.31], [10941, 2, 4, 1.01], [344, 25, 5, 0.53], [8685, 3, 6, 1.48], [12661, 1, 6, 2.24], [11846, 3, 6, 0.52], [70, 16, 4, 0.34], [2774, 2, 4, 1.13], [6225, 7, 8, 0.0], [9124, 1, 6, 0.61], [585, 2, 4, 0.49], [11868, 3, 6, 0.52], [3258, 1, 6, 0.68], [10411, 10, 8, 0.57], [10529, 29, 13, 0.82], [947, 15, 4, 0.52], [2322, 2, 4, 0.67], [3899, 3, 4, 0.43], [789, 2, 4, 0.33], [6259, 7, 32, 0.0], [11164, 1, 13, 1.2], [2438, 2, 10, 0.39], [6630, 3, 4, 0.5], [13893, 2, 6, 0.74], [20650, 1, 4, 0.91], [9342, 2, 6, 1.39], [220, 4, 4, 0.93], [6235, 7, 12, 0.0], [407, 3, 7, 1.12], [956, 2, 4, 0.51], [1801, 1, 4, 0.8], [8054, 1, 4, 0.65], [11526, 10, 12, 0.29], [10632, 2, 4, 1.03], [6197, 7, 16, 0.0], [2335, 3, 4, 0.53], [973, 1, 4, 0.0], [1120, 1, 6, 0.37], [6422, 3, 6, 0.79], [12271, 2, 4, 0.54], [10397, 3, 4, 0.31], [8674, 2, 8, 0.63], [12647, 1, 7, 0.81], [11677, 1, 12, 2.04], [7702, 2, 13, 0.65], [2730, 3, 4, 0.94], [8756, 2, 7, 0.53], [1414, 16, 4, 0.41], [3994, 1, 4, 0.39], [405, 3, 7, 1.12], [201, 1, 4, 0.0], [11710, 3, 7, 0.51], [5812, 1, 4, 0.69], [3909, 7, 13, 0.65], [21683, 3, 6, 0.79], [11179, 1, 4, 0.71], [3430, 15, 4, 0.61], [10516, 3, 6, 0.68], [5939, 3, 4, 0.63], [2105, 3, 11, 0.33], [11039, 2, 19, 0.99], [12373, 1, 11, 1.62], [71, 16, 4, 0.32], [2733, 3, 4, 0.95], [21686, 3, 9, 1.35], [13498, 3, 7, 1.24], [380, 2, 4, 0.46], [3047, 3, 7, 0.91], [11772, 1, 10, 1.54], [21703, 3, 4, 1.04], [12010, 3, 4, 0.27], [21010, 2, 7, 0.91], [18964, 1, 4, 0.56], [6424, 3, 4, 1.42], [632, 11, 25, 0.0], [10825, 1, 6, 0.44], [3258, 7, 8, 0.68], [5083, 12, 15, 0.43], [7706, 2, 6, 0.65], [6560, 3, 7, 0.0], [9068, 1, 4, 1.21], [4176, 4, 4, 0.69], [1701, 2, 4, 1.34], [5493, 2, 11, 0.57], [11090, 1, 4, 0.29], [11887, 2, 7, 0.48], [332, 2, 4, 0.45], [5152, 2, 7, 1.17], [334, 25, 4, 1.09], [10406, 1, 4, 0.61], [23611, 3, 7, 1.0], [3059, 3, 4, 0.86], [12234, 3, 4, 1.37], [21699, 3, 7, 0.57], [2436, 4, 4, 1.29], [12662, 1, 4, 0.82], [2879, 1, 4, 0.48], [8284, 2, 6, 0.33], [22318, 3, 6, 0.82], [19582, 3, 6, 0.79], [1274, 1, 4, 0.8], [8510, 7, 12, 0.0], [8636, 3, 9, 1.27], [1339, 1, 4, 0.35], [11104, 3, 4, 1.75], [6540, 25, 4, 0.76], [353, 1, 4, 0.63], [2421, 80, 6, 0.41], [11909, 3, 4, 0.6], [9803, 3, 15, 0.38], [942, 3, 6, 0.61], [3021, 68, 4, 0.33], [1413, 1, 4, 0.41], [11288, 2, 4, 2.61], [13483, 1, 4, 1.06], [8927, 10, 14, 0.29], [12369, 1, 6, 0.0], [3551, 3, 4, 0.46], [1548, 1, 4, 0.59], [6792, 2, 4, 0.44], [3340, 3, 4, 1.77], [10717, 3, 6, 0.32], [1120, 3, 10, 0.36], [11643, 1, 6, 0.58], [2738, 3, 6, 0.88], [354, 2, 4, 0.47], [12235, 3, 4, 1.37], [11495, 1, 4, 0.41], [11710, 1, 7, 0.51], [6628, 3, 4, 0.33], [6034, 23, 10, 0.75], [11180, 1, 6, 0.71], [616, 2, 20, 0.57], [9358, 1, 5, 0.71], [9204, 3, 6, 0.1], [10940, 2, 4, 1.01], [1038, 2, 6, 0.25], [14039, 3, 7, 0.37], [3975, 4, 4, 0.69], [6957, 7, 19, 0.81], [10937, 2, 4, 1.01], [6339, 3, 10, 0.0], [1049, 2, 4, 0.27], [21697, 3, 4, 0.57], [8754, 2, 6, 0.35], [72, 1, 4, 0.41], [11427, 2, 6, 0.34], [11587, 1, 10, 0.92], [2990, 3, 4, 0.79], [3961, 1, 4, 0.32], [8891, 7, 23, 0.0], [80, 1, 4, 0.57], [21269, 1, 4, 0.0], [11494, 1, 4, 0.32], [10412, 10, 8, 0.39], [975, 3, 6, 0.33], [6566, 7, 8, 0.0], [5940, 3, 4, 0.6], [2422, 29, 8, 0.86], [5007, 3, 8, 0.45], [11919, 1, 8, 0.38], [9945, 3, 6, 0.36], [8902, 7, 14, 0.0], [11611, 2, 6, 0.47], [7703, 2, 6, 0.65], [12229, 2, 4, 0.5], [10630, 2, 4, 1.03], [292, 3, 4, 0.65], [12728, 1, 4, 0.0], [4372, 10, 12, 0.65], [3257, 4, 4, 1.04], [19924, 2, 7, 0.89], [12621, 1, 4, 0.91], [12360, 3, 6, 1.31], [454, 3, 6, 0.65], [2945, 3, 4, 1.09], [938, 3, 6, 0.64], [21806, 1, 4, 0.0], [10093, 3, 15, 0.88], [13024, 3, 8, 0.97], [21713, 3, 15, 0.35], [23489, 3, 6, 0.96], [6570, 7, 8, 0.0], [12496, 3, 6, 0.42], [11717, 3, 6, 2.06], [22558, 3, 6, 0.44], [1668, 1, 4, 0.59], [10530, 29, 10, 0.81], [19583, 1, 4, 0.0], [9971, 2, 4, 0.91], [1602, 68, 4, 1.1], [23339, 3, 4, 0.46], [111, 1, 4, 0.14], [247, 1, 4, 0.78], [22590, 1, 6, 0.45], [944, 15, 4, 0.36], [4175, 3, 16, 0.87], [1050, 2, 4, 0.27], [2103, 16, 4, 0.4], [12417, 1, 4, 0.74], [7457, 3, 8, 0.42], [11583, 29, 10, 0.52], [11885, 2, 6, 0.49], [19581, 3, 6, 0.79], [3079, 3, 4, 0.44], [11213, 4, 4, 2.27], [22565, 3, 6, 0.83], [6266, 23, 15, 0.48], [21704, 3, 17, 0.37], [8659, 1, 4, 0.83], [3477, 2, 4, 0.41], [3528, 25, 6, 0.43], [9778, 1, 4, 0.54], [2108, 3, 8, 0.33], [12979, 25, 12, 0.59], [21700, 3, 4, 1.06], [2100, 25, 6, 0.51], [11450, 2, 6, 0.36], [12653, 1, 10, 0.34], [10488, 7, 10, 0.0], [7250, 3, 6, 0.26], [10407, 1, 4, 0.0], [11304, 2, 4, 2.61], [13481, 1, 4, 1.06], [9491, 21, 10, 0.6], [11936, 2, 4, 1.01], [12363, 3, 6, 1.32], [7708, 2, 6, 0.65], [6627, 3, 4, 0.34], [20188, 3, 4, 0.91], [2528, 29, 4, 0.44], [12236, 3, 7, 0.29], [10828, 7, 24, 0.0], [1601, 68, 4, 1.13], [10398, 2, 4, 0.46], [23275, 2, 4, 0.54], [8943, 1, 4, 0.57], [7885, 1, 4, 0.26], [8686, 3, 4, 1.48], [11183, 1, 8, 1.67], [4033, 29, 18, 0.74], [5831, 3, 4, 0.84], [14038, 3, 6, 0.52], [10529, 80, 6, 0.82], [6219, 7, 6, 0.0], [8600, 1, 4, 0.87], [10413, 10, 7, 1.49], [8681, 3, 4, 0.36], [6343, 3, 11, 0.0], [9126, 1, 10, 0.61], [21810, 1, 6, 0.0], [4232, 80, 7, 0.82], [6562, 3, 6, 0.0], [10581, 3, 8, 1.19], [9186, 29, 4, 0.45], [11158, 1, 15, 1.39], [12367, 3, 6, 1.35], [2805, 137, 8, 0.86], [2727, 3, 4, 1.08], [10635, 2, 4, 1.03], [10527, 3, 15, 0.9], [12417, 3, 6, 0.75], [14029, 3, 4, 0.6], [12729, 1, 4, 0.0], [11402, 1, 4, 0.85], [5976, 1, 4, 0.65], [2539, 29, 10, 0.48], [3673, 2, 6, 1.06], [13025, 3, 7, 0.97], [23491, 3, 6, 0.26], [11048, 1, 4, 0.47], [3553, 3, 4, 0.46], [2318, 2, 4, 0.31], [167, 1, 4, 0.0], [12368, 3, 6, 1.36], [12497, 3, 6, 0.42], [13482, 1, 4, 1.06], [5491, 2, 4, 0.56], [1886, 2, 8, 2.59], [10540, 3, 4, 0.36], [3562, 3, 4, 0.46], [22573, 2, 4, 0.54], [9997, 80, 4, 0.76], [7360, 3, 4, 0.39], [4327, 1, 4, 0.46], [11399, 2, 6, 0.52], [8683, 3, 4, 0.38], [331, 3, 4, 0.45], [2916, 1, 4, 0.75], [2946, 3, 6, 1.02], [2161, 1, 4, 0.39], [12646, 1, 7, 0.82], [8356, 1, 4, 0.61], [10626, 7, 14, 0.0], [6340, 3, 7, 0.0], [3898, 3, 4, 0.44], [6317, 7, 12, 0.0], [2734, 3, 4, 1.08], [19977, 2, 4, 2.09], [6399, 7, 23, 0.0], [13491, 7, 6, 0.91], [6233, 7, 15, 0.0], [11161, 1, 12, 1.25], [11150, 1, 4, 0.36], [6567, 7, 12, 0.0], [11858, 1, 4, 0.74], [436, 2, 8, 0.78], [624, 2, 17, 0.58], [12270, 2, 4, 0.55], [186, 3, 13, 0.45], [13272, 29, 7, 0.55], [6668, 332, 11, 0.0], [11181, 1, 8, 1.21], [3910, 7, 11, 0.65], [6267, 23, 14, 0.48], [10409, 1, 4, 0.59], [7300, 7, 13, 0.0], [8599, 1, 4, 0.95], [6234, 7, 11, 0.0], [6540, 29, 6, 0.76], [96, 1, 6, 0.0], [9533, 7, 15, 0.0], [9965, 2, 4, 0.91], [21317, 3, 4, 0.34], [11467, 1, 4, 0.95], [2537, 1, 6, 0.52], [11855, 1, 4, 0.74], [12304, 1, 10, 1.42], [11886, 2, 6, 0.55], [3908, 7, 11, 1.3], [13107, 3, 8, 2.2], [17, 1, 4, 0.38], [344, 2, 4, 0.53], [12212, 29, 4, 0.48], [6236, 7, 8, 0.0], [13133, 3, 6, 1.36], [1300, 3, 6, 0.65], [9840, 25, 10, 0.41], [13036, 3, 6, 1.15], [11409, 7, 14, 0.4], [291, 3, 6, 0.65], [11718, 3, 4, 2.05], [12053, 2, 7, 0.76], [5644, 3, 4, 0.84], [1065, 7, 14, 0.43], [8637, 3, 7, 1.38], [12791, 2, 8, 0.42], [2735, 3, 4, 0.79], [5343, 15, 4, 0.52], [2099, 2, 4, 0.57], [10530, 80, 4, 0.81], [11150, 2, 8, 0.37], [6055, 3, 7, 0.76], [21808, 1, 4, 0.0], [2188, 2, 10, 0.35], [2992, 3, 4, 0.82], [11930, 1, 4, 1.15], [21687, 3, 6, 1.35], [6195, 7, 12, 0.0], [11610, 3, 6, 0.35], [6198, 7, 10, 0.0], [1851, 1, 4, 0.34], [21683, 1, 4, 0.0], [8188, 10, 10, 0.4], [3559, 11, 15, 0.44], [9996, 80, 4, 0.92], [5658, 68, 4, 0.3], [22330, 3, 4, 0.95], [3977, 3, 4, 0.96], [5642, 3, 4, 0.85], [23341, 3, 4, 0.46], [12935, 3, 6, 0.77], [12925, 1, 7, 0.3], [21807, 1, 4, 0.0], [1880, 4, 4, 2.09], [408, 3, 6, 1.12], [12764, 1, 4, 0.54], [3552, 3, 4, 0.46], [20920, 3, 4, 0.53], [21316, 3, 4, 0.34], [21170, 10, 8, 0.69], [6800, 7, 6, 0.0], [6036, 23, 7, 0.75], [6957, 2, 4, 0.81], [23493, 3, 6, 0.26], [71, 1, 4, 0.32], [23494, 3, 4, 0.26], [6787, 7, 13, 0.0], [13264, 29, 4, 0.48], [21809, 1, 6, 0.0], [5341, 15, 4, 0.55], [8905, 7, 14, 0.0], [21701, 3, 4, 1.04], [10149, 1, 8, 0.55], [109, 4, 4, 1.12], [11641, 1, 6, 0.58], [8286, 1, 4, 0.33], [958, 2, 4, 0.53], [13488, 1, 7, 0.66], [9777, 1, 4, 0.52], [23040, 10, 8, 2.31], [4326, 1, 4, 0.47], [11961, 1, 4, 0.35], [7886, 1, 4, 0.31], [586, 1, 4, 0.39], [6629, 3, 4, 0.38], [12239, 3, 6, 0.26], [2821, 3, 14, 0.45], [23961, 3, 4, 0.52], [11618, 1, 4, 0.52], [825, 1, 4, 0.34], [9344, 332, 6, 0.0], [11633, 1, 6, 0.38], [11678, 1, 8, 1.16], [11178, 1, 4, 0.68], [192, 3, 15, 0.58], [28, 1, 4, 0.62], [4586, 10, 18, 0.51], [1414, 1, 4, 0.41], [5128, 1, 5, 0.48], [3984, 3, 12, 0.87], [9138, 2, 6, 0.66], [5111, 1, 4, 0.66], [8155, 25, 4, 0.58], [11920, 1, 7, 0.3], [3278, 29, 8, 0.54], [7513, 1, 4, 0.0], [11290, 2, 4, 2.61], [590, 16, 4, 0.43], [9803, 138, 4, 0.38], [20966, 3, 6, 1.15], [10594, 3, 4, 0.45], [8058, 3, 6, 1.1], [21476, 7, 7, 0.93], [936, 3, 6, 0.25], [2438, 1, 4, 0.39], [7513, 7, 21, 0.0], [21946, 1, 4, 0.97], [7522, 7, 15, 0.0], [4372, 1, 4, 0.67], [5340, 23, 8, 0.4], [21781, 2, 4, 0.33], [19341, 2, 4, 0.41], [21463, 7, 6, 0.58], [19764, 2, 6, 0.42], [6052, 3, 7, 0.56], [12055, 2, 7, 0.76], [11619, 1, 4, 0.52], [2013, 2, 4, 0.86], [23492, 3, 4, 0.26], [10816, 3, 7, 2.11], [14040, 3, 6, 1.06], [3906, 14, 10, 0.57], [19687, 1, 4, 0.68], [1523, 1, 4, 0.95], [4001, 3, 17, 0.84], [13041, 3, 5, 0.42], [13249, 29, 25, 1.31], [9910, 25, 4, 0.36], [12637, 1, 4, 0.51], [13323, 3, 6, 0.42], [560, 1, 4, 1.0], [11564, 29, 7, 0.43], [6056, 3, 6, 0.58], [20965, 3, 7, 1.15], [12594, 7, 4, 0.28], [12054, 2, 7, 0.76], [9087, 29, 8, 0.8], [11848, 1, 4, 0.54], [21169, 10, 6, 0.69], [11435, 2, 6, 0.37], [19685, 1, 6, 0.0], [5650, 2, 4, 0.39], [12979, 1, 4, 0.57], [5733, 2, 8, 0.67], [12474, 3, 6, 1.59], [10410, 1, 4, 0.0], [152, 1, 4, 0.0], [11711, 3, 4, 0.94], [1024, 1, 4, 0.34], [2287, 25, 4, 0.71], [21927, 1, 4, 0.28], [22696, 3, 4, 0.5], [12365, 3, 7, 1.03], [216, 4, 4, 0.79], [21167, 10, 7, 0.69], [20190, 3, 6, 0.94], [2736, 3, 4, 0.78], [11085, 1, 4, 0.49], [12418, 3, 6, 0.75], [10507, 2, 4, 0.48], [9608, 1, 4, 0.37], [3071, 3, 4, 0.47], [11157, 11, 10, 0.33], [21692, 3, 6, 1.51], [10640, 3, 6, 0.45], [10414, 10, 6, 0.33], [10521, 3, 6, 0.64], [11773, 1, 4, 0.57], [12871, 1, 6, 1.66], [11968, 1, 4, 0.22], [22693, 3, 5, 0.5], [11182, 1, 8, 1.83], [2108, 1, 4, 0.33], [8283, 1, 4, 0.35], [10460, 3, 6, 0.79], [21705, 3, 10, 0.97], [3028, 3, 4, 0.3], [10461, 3, 8, 0.79], [11915, 3, 21, 0.38], [11163, 1, 26, 1.03], [10459, 3, 8, 0.79], [12913, 3, 4, 0.25], [1066, 7, 13, 0.22], [2323, 2, 4, 0.67], [13104, 3, 6, 2.19], [23960, 3, 4, 0.54], [3576, 29, 5, 0.61], [9841, 25, 10, 0.41], [432, 1, 4, 0.57], [5851, 1, 10, 0.35], [7564, 7, 8, 0.0], [10639, 2, 4, 1.03], [9289, 29, 13, 1.3], [168, 1, 4, 0.52], [70, 1, 4, 0.34], [8896, 1, 4, 1.0], [13268, 29, 6, 0.81], [5494, 2, 6, 0.55], [10082, 23, 8, 0.63], [21468, 7, 5, 0.56], [8682, 3, 6, 0.36], [6057, 3, 6, 0.77], [9967, 2, 4, 0.91], [10638, 2, 4, 1.03], [23490, 3, 4, 0.96], [3583, 3, 6, 0.46], [3088, 1, 4, 0.3], [6235, 1, 4, 0.0], [12040, 68, 7, 0.38], [5660, 2, 6, 1.54], [3905, 14, 7, 0.0], [6035, 23, 6, 0.75], [12992, 3, 11, 0.4], [12057, 2, 6, 0.76], [21168, 10, 6, 0.69], [11962, 1, 4, 0.39], [9788, 1, 4, 0.54], [11625, 29, 4, 0.42], [11844, 2, 4, 0.51], [11857, 1, 4, 0.74], [10531, 14, 10, 0.5], [2859, 16, 4, 0.58], [6319, 7, 18, 0.0], [8904, 1, 4, 0.0], [8085, 1, 4, 0.61], [6394, 1, 4, 0.0], [6728, 1, 4, 0.48], [10487, 7, 6, 0.0], [8234, 1, 4, 0.7], [11262, 7, 12, 0.0], [9350, 3, 6, 0.42], [5970, 1, 5, 0.35], [11091, 1, 6, 0.29], [10906, 3, 19, 0.39], [6785, 7, 11, 0.0], [1765, 2, 4, 0.0], [21706, 3, 16, 0.32], [10616, 1, 4, 0.0], [11960, 3, 6, 0.2], [11092, 1, 4, 0.29], [6778, 7, 15, 0.0], [12340, 2, 6, 0.64], [19334, 2, 4, 0.39], [23032, 3, 4, 0.59], [7521, 7, 14, 0.0], [11526, 1, 4, 0.26], [22553, 10, 11, 0.43], [3983, 4, 4, 0.69], [2103, 1, 4, 0.4], [10780, 3, 4, 1.43], [2169, 3, 6, 0.47], [13293, 3, 6, 0.58], [2421, 29, 4, 0.4], [22968, 1, 4, 0.49], [13037, 3, 6, 1.15], [4940, 1, 8, 0.47], [2732, 3, 4, 0.85], [2942, 3, 4, 0.89], [10609, 1, 16, 1.13], [9355, 1, 4, 0.55], [20963, 3, 6, 1.15], [7084, 1, 4, 0.0], [2406, 29, 5, 0.71], [1080, 1, 7, 2.42], [9087, 25, 4, 0.8], [13198, 29, 4, 0.62], [59, 1, 4, 0.0], [60, 1, 4, 0.53], [3976, 3, 11, 0.87], [10080, 3, 4, 0.0], [2365, 3, 6, 0.61], [22691, 3, 5, 0.5], [10275, 3, 4, 0.38], [11931, 1, 4, 1.15], [3442, 29, 10, 0.7], [31, 1, 4, 0.61], [5188, 1, 4, 0.46], [9544, 7, 11, 0.0], [10462, 3, 6, 0.79], [8690, 10, 15, 0.33], [8167, 7, 6, 0.8], [8688, 14, 6, 0.6], [8059, 3, 6, 1.1], [5577, 3, 4, 0.72], [21315, 3, 4, 0.34], [20918, 3, 4, 0.89], [334, 2, 4, 0.0], [13106, 3, 6, 2.18], [3576, 25, 4, 0.61], [3575, 29, 4, 0.61], [11775, 1, 4, 0.6], [3337, 1, 4, 0.7], [3334, 5, 7, 0.85], [336, 16, 4, 0.32], [11891, 3, 8, 0.75], [19582, 1, 4, 0.0], [10114, 3, 14, 0.0], [12475, 3, 6, 1.4], [10482, 7, 9, 0.0], [11867, 3, 6, 0.64], [3462, 2, 4, 0.61], [3379, 3, 4, 0.62], [5341, 16, 4, 0.55], [21480, 7, 8, 1.01], [12912, 3, 4, 0.26], [10083, 23, 10, 0.62], [4329, 3, 6, 0.48], [1139, 3, 4, 0.3], [3053, 3, 4, 0.62], [2217, 1, 7, 0.96], [12338, 29, 7, 0.47], [19765, 2, 4, 0.42], [20556, 2, 4, 0.56], [21712, 1, 4, 0.35], [19331, 2, 4, 0.42], [12917, 3, 4, 0.25], [14014, 3, 6, 0.59], [6054, 3, 6, 0.58], [11105, 3, 4, 0.38], [10597, 3, 4, 0.55], [11498, 1, 4, 0.6], [20964, 3, 6, 1.15], [10455, 29, 4, 0.32], [214, 1, 4, 0.34], [6966, 3, 4, 0.91], [7570, 3, 8, 0.0], [4030, 25, 4, 0.56], [21481, 7, 4, 0.73], [1431, 3, 9, 0.62], [6194, 3, 15, 0.0], [12490, 2, 4, 0.67], [11942, 29, 5, 0.83], [11613, 2, 4, 0.47], [11339, 3, 4, 0.91], [10669, 3, 4, 0.52], [12426, 3, 6, 0.51], [3429, 16, 4, 0.39], [10517, 29, 15, 1.27], [3609, 24, 4, 1.33], [19223, 1, 4, 0.0], [20956, 7, 7, 0.62], [1406, 25, 6, 0.47], [11054, 3, 6, 1.94], [7569, 3, 10, 0.0], [11156, 11, 8, 0.32], [9779, 1, 4, 0.58], [11410, 29, 6, 0.49], [8684, 3, 4, 0.38], [11306, 2, 4, 1.69], [13258, 29, 7, 0.72], [12930, 2, 6, 0.33], [20790, 1, 8, 0.41], [11634, 1, 4, 0.35], [2100, 2, 4, 0.51], [3945, 23, 12, 0.53], [11965, 1, 4, 0.35], [9781, 1, 4, 0.58], [11426, 25, 4, 0.59], [9494, 1, 7, 0.65], [23337, 3, 4, 0.96], [11719, 3, 7, 2.22], [11722, 3, 4, 2.17], [3979, 3, 10, 0.84], [21783, 2, 4, 0.38], [11338, 7, 4, 0.63], [12517, 2, 7, 0.76], [12952, 21, 4, 1.37], [3903, 14, 8, 0.67], [10580, 3, 6, 1.72], [13274, 29, 7, 0.61], [3575, 25, 4, 0.61], [448, 1, 4, 0.43], [8106, 10, 4, 0.55], [22697, 3, 4, 0.5], [10483, 7, 8, 0.0], [19375, 3, 4, 0.44], [10596, 3, 4, 0.55], [12309, 2, 4, 0.62], [3421, 3, 19, 0.25], [8157, 29, 5, 0.68], [6872, 25, 4, 0.54], [10408, 1, 4, 0.52], [963, 3, 4, 0.73], [10668, 3, 4, 0.55], [88, 1, 4, 0.61], [8068, 3, 12, 0.0], [61, 1, 4, 0.0], [12535, 2, 4, 0.3], [11411, 29, 4, 0.31], [6208, 7, 8, 0.0], [5342, 23, 9, 0.38], [2731, 3, 4, 0.94], [10524, 29, 8, 0.81], [13034, 1, 4, 0.0], [13105, 3, 6, 2.18], [6489, 11, 21, 0.64], [11273, 1, 23, 1.22], [2326, 2, 4, 0.0], [11642, 1, 4, 0.57], [1299, 3, 9, 0.62], [23039, 10, 7, 2.31], [21474, 7, 4, 0.68], [5343, 16, 4, 0.53], [333, 25, 4, 1.07], [20919, 3, 4, 0.38], [13246, 29, 4, 0.0], [12159, 2, 4, 0.39], [2411, 29, 4, 0.43], [20208, 3, 4, 0.44], [13266, 29, 4, 0.49], [11659, 3, 4, 0.73], [9780, 1, 4, 0.58], [11726, 29, 4, 0.45], [12418, 1, 6, 0.74], [22694, 3, 4, 0.5], [10524, 80, 4, 0.81], [2538, 1, 4, 0.0], [3722, 25, 4, 0.73], [5020, 23, 17, 0.48], [2709, 15, 4, 0.56], [10707, 1, 4, 1.15], [23234, 25, 4, 0.46], [12993, 3, 10, 0.41], [11152, 11, 9, 0.37], [2608, 1, 4, 0.27], [8906, 7, 12, 0.0], [9910, 29, 4, 0.36], [13259, 29, 10, 0.0], [1744, 1, 4, 0.68], [13038, 3, 6, 1.21], [12240, 14, 5, 0.27], [13273, 29, 4, 0.6], [2935, 1, 4, 0.36], [10828, 1, 4, 0.0], [19581, 1, 4, 0.0], [9125, 1, 7, 0.61], [22920, 3, 6, 0.75], [5925, 1, 7, 0.27], [12586, 3, 6, 0.77], [5652, 2, 4, 0.36], [21691, 3, 7, 1.05], [11154, 11, 8, 0.33], [20921, 3, 4, 0.53], [1095, 2, 6, 0.39], [7565, 7, 7, 0.0], [3723, 25, 4, 0.88], [21187, 10, 6, 3.17], [110, 1, 4, 0.0], [9998, 29, 4, 0.95], [4223, 4, 4, 0.8], [21698, 3, 4, 0.56], [11529, 10, 7, 0.3], [2417, 29, 8, 0.73], [7457, 1, 4, 0.43], [3585, 3, 4, 0.44], [11859, 1, 4, 0.74], [1691, 1, 4, 0.82], [9995, 80, 4, 0.34], [9356, 1, 4, 0.33], [8191, 10, 7, 0.38], [13258, 25, 4, 0.72], [10815, 3, 7, 2.21], [6346, 7, 6, 0.0], [22874, 3, 4, 0.56], [790, 2, 4, 0.28], [4222, 4, 4, 0.88], [2985, 3, 4, 0.51], [14, 1, 4, 0.36], [12725, 1, 4, 0.41], [10279, 3, 4, 1.1], [11289, 2, 4, 2.62], [9671, 3, 6, 0.59], [2234, 1, 4, 0.85], [10384, 3, 6, 0.26], [14016, 3, 4, 1.05], [180, 15, 4, 0.27], [948, 15, 4, 0.23], [3988, 4, 4, 0.78], [6931, 2, 4, 0.57], [3560, 3, 4, 0.46], [22910, 3, 6, 0.77], [4927, 12, 6, 0.44], [9122, 15, 5, 0.34], [22591, 1, 4, 0.45], [21091, 7, 5, 0.32], [1575, 1, 4, 0.7], [6668, 1, 4, 0.0], [3450, 1, 5, 0.36], [11425, 25, 4, 0.57], [22585, 3, 4, 0.52], [3430, 16, 4, 0.61], [3561, 3, 4, 0.46], [8903, 7, 14, 0.0], [5769, 3, 8, 0.0], [22879, 3, 4, 0.57], [394, 10, 8, 0.3], [382, 1, 4, 1.0], [2308, 25, 4, 0.75], [11412, 29, 4, 0.32], [21694, 3, 7, 1.05], [11564, 80, 4, 0.43], [7525, 7, 14, 0.0], [2325, 2, 4, 0.65], [12379, 1, 4, 1.15], [23028, 3, 4, 0.58], [7566, 3, 8, 0.0], [10254, 1, 4, 0.92], [1620, 1, 4, 0.42], [6798, 7, 7, 0.0], [1068, 7, 11, 0.38], [2492, 1, 4, 0.54], [23962, 3, 4, 0.51], [2111, 3, 7, 0.38], [13259, 25, 7, 1.14], [10994, 2, 4, 0.5], [21686, 1, 4, 0.0], [2836, 3, 10, 0.45], [23903, 3, 6, 0.52], [11226, 1, 4, 0.32], [12648, 1, 11, 1.03], [3016, 3, 4, 0.29], [3080, 3, 4, 0.47], [21626, 1, 4, 0.41], [2417, 80, 4, 0.73], [5648, 2, 4, 0.49], [11426, 29, 4, 0.59], [1055, 2, 4, 0.24], [10278, 3, 4, 0.73], [2367, 3, 4, 0.61], [23231, 3, 6, 0.42], [2188, 1, 10, 0.39], [5446, 23, 4, 0.0], [12419, 1, 4, 0.48], [22871, 7, 4, 0.55], [1407, 25, 4, 0.5], [10176, 29, 4, 0.73], [9182, 1, 4, 0.23], [11503, 1, 4, 1.25], [10640, 1, 4, 0.45], [512, 24, 4, 2.17], [8139, 7, 12, 0.0], [1432, 25, 4, 0.41], [9149, 23, 6, 0.39], [7362, 3, 4, 0.39], [5543, 1, 6, 0.33], [4672, 1, 4, 1.56], [10897, 1, 12, 1.12], [11056, 3, 6, 2.2], [19358, 23, 7, 0.43], [12585, 3, 6, 0.63], [10599, 3, 4, 0.56], [392, 4, 4, 0.72], [3970, 2, 4, 1.63], [8089, 1, 6, 1.29], [11528, 10, 7, 0.3], [3386, 1, 4, 1.0], [8756, 1, 4, 0.52], [2193, 1, 10, 0.26], [2366, 3, 4, 0.62], [12476, 3, 6, 1.41], [19361, 23, 7, 0.46], [12430, 3, 6, 0.75], [6803, 3, 6, 0.65], [3986, 4, 4, 0.7], [13108, 3, 8, 2.22], [1598, 68, 4, 1.24], [21710, 3, 10, 0.74], [10181, 26, 8, 0.0], [10124, 1, 7, 0.38], [2194, 1, 4, 0.26], [23992, 29, 7, 0.43], [11155, 11, 9, 0.32], [11253, 7, 7, 0.0], [13299, 1, 4, 0.6], [9209, 25, 4, 0.63], [8058, 1, 4, 1.08], [1301, 3, 6, 1.22], [20670, 1, 6, 0.6], [11408, 7, 11, 0.73], [21773, 2, 4, 0.37], [13023, 1, 4, 0.69], [23031, 3, 4, 0.58], [12489, 1, 4, 0.57], [10147, 1, 6, 0.33], [5813, 1, 4, 0.64], [11527, 10, 7, 0.3], [9250, 3, 7, 1.21], [19336, 2, 4, 0.37], [3598, 15, 4, 0.29], [10670, 3, 4, 0.48], [9239, 25, 4, 0.76], [11854, 1, 4, 0.74], [10928, 2, 4, 0.32], [12249, 14, 4, 0.27], [4232, 29, 4, 0.82], [12635, 2, 4, 0.72], [21189, 10, 6, 3.17], [6359, 10, 11, 0.35], [3024, 3, 4, 0.66], [1063, 7, 11, 0.43], [14041, 1, 4, 0.28], [7361, 3, 4, 0.4], [21320, 7, 15, 1.0], [3577, 29, 4, 0.53], [12516, 2, 6, 0.76], [7624, 7, 14, 0.0], [1648, 1, 4, 0.95], [22029, 3, 4, 1.04], [9085, 29, 7, 0.68], [22877, 7, 4, 0.57], [1853, 1, 4, 0.44], [3577, 25, 4, 0.53], [10574, 1, 4, 0.7], [4898, 332, 4, 0.0], [8157, 80, 4, 0.68], [3985, 3, 8, 0.84], [22922, 3, 4, 0.79], [2695, 3, 10, 0.45], [8502, 3, 4, 0.2], [3582, 3, 4, 0.45], [30, 1, 4, 0.6], [23545, 3, 6, 0.53], [6779, 7, 13, 0.0], [9085, 25, 4, 0.68], [24130, 1, 4, 0.34], [8023, 1, 4, 0.53], [9070, 1, 4, 0.38], [20958, 3, 4, 1.24], [8156, 25, 4, 1.07], [19878, 1, 4, 0.34], [11413, 29, 4, 0.32], [11510, 1, 4, 0.0], [10105, 3, 4, 0.84], [19882, 1, 4, 0.31], [12508, 1, 6, 0.71], [23544, 3, 6, 0.53], [10382, 3, 4, 0.61], [22921, 3, 4, 0.79], [12430, 1, 4, 0.74], [12675, 3, 4, 0.55], [22920, 1, 4, 0.74], [8944, 1, 4, 0.33], [12358, 1, 4, 1.3], [20969, 1, 4, 1.15], [8155, 2, 4, 0.58], [9833, 2, 8, 0.38], [12791, 1, 4, 0.44], [209, 3, 4, 0.94], [6268, 23, 12, 0.36], [3987, 3, 8, 0.9], [13295, 3, 4, 0.58], [21953, 10, 6, 0.69], [19964, 25, 4, 0.61], [5811, 1, 4, 0.61], [11055, 3, 4, 2.21], [13853, 3, 4, 0.61], [1706, 25, 4, 0.36], [2507, 2, 4, 0.21], [12676, 3, 4, 0.56], [12448, 2, 6, 0.51], [4030, 29, 4, 0.56], [5849, 1, 4, 0.33], [7524, 7, 11, 0.0], [10595, 3, 4, 0.58], [12474, 1, 4, 0.0], [23038, 10, 7, 1.47], [1277, 1, 4, 0.68], [11420, 3, 4, 0.51], [1814, 2, 4, 0.44], [1599, 68, 4, 1.18], [23920, 2, 4, 0.84], [20259, 2, 4, 0.5], [5769, 1, 6, 0.0], [21709, 3, 16, 0.44], [2050, 1, 4, 0.0], [5924, 1, 6, 0.32], [11895, 1, 4, 0.28], [8586, 7, 11, 0.0], [1059, 3, 4, 1.05], [1511, 3, 7, 0.32], [10411, 1, 4, 0.54], [6399, 1, 4, 0.0], [20961, 1, 4, 0.62], [1324, 1, 4, 0.4], [2999, 1, 4, 0.38], [9960, 3, 4, 0.28], [2104, 1, 4, 0.38], [7358, 3, 4, 0.39], [947, 16, 4, 0.52], [11212, 4, 4, 2.27], [11333, 7, 7, 0.43], [385, 1, 4, 0.97], [1053, 729, 4, 0.25], [5453, 1, 4, 0.74], [2859, 1, 4, 0.58], [22588, 3, 4, 0.5], [2403, 3, 6, 0.42], [22589, 3, 4, 0.5], [3599, 25, 4, 1.71], [11093, 1, 4, 0.29], [22914, 3, 4, 0.58], [2217, 15, 4, 0.97], [32, 1, 4, 0.57], [2934, 1, 4, 0.44], [2216, 1, 4, 0.85], [19883, 1, 4, 0.31], [20939, 3, 4, 0.76], [691, 3, 4, 0.49], [21088, 7, 6, 0.28], [22930, 3, 4, 0.58], [11215, 1, 4, 0.62], [9083, 3, 6, 0.73], [62, 1, 9, 0.59], [11603, 2, 4, 0.33], [12150, 1, 4, 0.27], [10467, 29, 7, 0.72], [2196, 25, 4, 0.52], [406, 1, 4, 0.0], [97, 1, 4, 0.0], [22923, 3, 4, 0.58], [22236, 1, 4, 0.43], [4043, 29, 7, 0.42], [1064, 7, 8, 0.66], [6396, 1, 4, 0.0], [21459, 7, 12, 1.0], [8357, 1, 4, 0.78], [7573, 1, 20, 0.63], [1406, 2, 4, 0.47], [8677, 1, 4, 0.95], [2835, 3, 8, 0.47], [10720, 80, 5, 0.4], [7568, 3, 6, 0.0], [22928, 3, 4, 0.58], [12546, 2, 4, 0.41], [20978, 1, 4, 0.96], [5452, 1, 4, 0.54], [12128, 1, 4, 0.36], [12230, 3, 4</t>
+  </si>
+  <si>
+    <t>[[326, 2, 21, 0.36], [130, 1, 13, 0.33], [2049, 3, 26, 0.25], [6935, 2, 42, 1.1], [3, 2, 16, 0.42], [141, 2, 12, 0.54], [362, 2, 16, 0.46], [205, 2, 8, 0.37], [75, 2, 12, 0.66], [151, 1, 19, 0.36], [305, 2, 19, 0.49], [2327, 2, 17, 0.75], [589, 2, 21, 0.0], [20252, 2, 8, 0.49], [8915, 2, 19, 0.0], [206, 2, 7, 0.37], [2328, 2, 15, 0.75], [7885, 4, 11, 0.26], [76, 2, 12, 0.51], [2778, 2, 13, 0.74], [144, 2, 13, 0.7], [593, 2, 18, 0.38], [8648, 2, 12, 0.89], [9507, 3, 6, 0.21], [8672, 2, 13, 0.61], [8650, 2, 12, 0.89], [1776, 1, 10, 0.76], [146, 2, 13, 0.68], [2050, 3, 10, 0.68], [6936, 2, 24, 1.1], [5151, 2, 11, 0.55], [412, 1, 8, 0.57], [248, 1, 8, 0.25], [143, 2, 20, 0.46], [1007, 2, 19, 0.15], [990, 2, 10, 0.2], [7886, 4, 10, 0.31], [88, 10, 24, 0.6], [2054, 3, 10, 0.68], [83, 2, 8, 0.32], [145, 2, 12, 0.54], [10149, 3, 45, 0.37], [45, 2, 11, 2.34], [346, 1, 10, 0.51], [2057, 3, 10, 0.68], [140, 2, 10, 0.35], [57, 1, 10, 0.37], [1446, 2, 7, 0.0], [5005, 1, 20, 0.44], [1777, 1, 7, 0.77], [2055, 3, 8, 0.68], [8938, 2, 10, 0.0], [1429, 2, 7, 0.0], [61, 3, 7, 0.32], [361, 2, 11, 0.54], [7004, 1, 7, 0.36], [12224, 1, 9, 0.42], [6394, 7, 53, 0.0], [10, 2, 15, 0.38], [413, 1, 6, 0.59], [5081, 2, 10, 0.36], [2991, 3, 6, 0.84], [167, 3, 9, 0.43], [168, 3, 10, 0.51], [8649, 2, 9, 0.89], [410, 1, 6, 0.27], [3478, 2, 8, 0.55], [1006, 2, 8, 0.44], [7084, 3, 4, 0.26], [1654, 2, 4, 0.2], [13028, 3, 10, 0.88], [74, 1, 7, 1.21], [201, 3, 8, 0.52], [335, 3, 24, 0.42], [10574, 3, 10, 0.35], [11737, 2, 7, 0.57], [417, 2, 12, 0.54], [21798, 1, 7, 0.34], [214, 3, 21, 0.37], [1656, 2, 4, 0.2], [345, 3, 8, 0.52], [378, 2, 10, 0.88], [3889, 1, 6, 0.28], [3893, 1, 6, 0.33], [8939, 2, 6, 0.0], [1492, 1, 11, 0.74], [6569, 7, 39, 0.0], [20258, 2, 7, 0.5], [5208, 3, 15, 0.26], [11234, 2, 11, 0.5], [8853, 2, 20, 1.1], [411, 2, 4, 0.37], [3891, 1, 5, 0.32], [19925, 2, 7, 0.94], [152, 21, 4, 0.29], [7887, 4, 6, 0.29], [3495, 3, 31, 0.55], [23, 1, 4, 0.02], [6158, 2, 13, 0.24], [414, 1, 4, 0.59], [161, 3, 15, 0.57], [10825, 21, 16, 0.46], [84, 2, 4, 0.38], [997, 2, 8, 0.21], [12721, 2, 11, 0.68], [94, 4, 4, 0.84], [1504, 2, 11, 0.96], [5086, 1, 11, 0.0], [308, 1, 19, 0.76], [79, 1, 4, 0.43], [998, 2, 8, 0.2], [96, 11, 31, 0.55], [416, 1, 4, 0.59], [346, 3, 6, 0.52], [1490, 1, 11, 0.49], [415, 1, 6, 0.59], [25, 1, 4, 0.49], [7005, 1, 4, 0.36], [9827, 3, 5, 0.42], [11404, 2, 14, 0.46], [307, 2, 6, 0.49], [8651, 2, 7, 0.85], [229, 1, 4, 0.75], [1243, 2, 10, 0.42], [1124, 2, 12, 0.43], [10993, 2, 12, 0.45], [6220, 7, 17, 0.0], [12225, 1, 6, 0.41], [5812, 3, 10, 0.5], [8274, 3, 10, 0.32], [6395, 7, 25, 0.0], [950, 1, 13, 0.25], [5209, 3, 12, 0.26], [1413, 15, 4, 0.4], [11811, 1, 9, 0.65], [2109, 1, 12, 0.44], [9690, 1, 4, 0.43], [66, 1, 11, 0.39], [5513, 2, 7, 0.37], [6224, 7, 21, 0.0], [20256, 2, 6, 0.63], [996, 2, 7, 0.14], [2049, 1, 6, 0.27], [35, 1, 4, 0.32], [11490, 1, 4, 0.37], [20927, 1, 6, 0.36], [21269, 3, 6, 2.02], [7036, 1, 13, 1.02], [22247, 2, 10, 0.68], [11739, 2, 6, 0.57], [418, 2, 4, 0.46], [1070, 7, 17, 0.51], [7567, 3, 4, 0.54], [1126, 2, 7, 0.41], [6097, 29, 21, 0.92], [33, 1, 8, 0.63], [2160, 68, 6, 0.4], [995, 2, 7, 0.45], [6098, 80, 5, 0.78], [126, 2, 4, 0.39], [6097, 80, 5, 0.92], [8945, 3, 7, 1.57], [336, 15, 4, 0.33], [432, 3, 6, 0.46], [11681, 2, 18, 1.57], [10148, 1, 7, 0.29], [1703, 2, 10, 1.12], [161, 1, 10, 0.57], [14037, 3, 10, 0.29], [11808, 1, 10, 0.56], [1655, 2, 4, 0.66], [95, 3, 95, 1.93], [1163, 3, 11, 0.41], [13967, 1, 6, 0.37], [9829, 3, 4, 0.35], [10944, 7, 14, 0.0], [5660, 2, 8, 1.49], [13260, 29, 6, 0.63], [6221, 7, 14, 0.0], [159, 3, 11, 0.31], [9069, 1, 4, 0.44], [11489, 1, 4, 0.49], [110, 4, 6, 1.03], [12870, 1, 12, 0.96], [59, 3, 13, 0.65], [21793, 1, 19, 1.25], [8121, 3, 7, 0.28], [114, 3, 4, 0.32], [10529, 29, 24, 0.82], [9784, 1, 4, 0.52], [11767, 1, 7, 0.0], [8926, 1, 10, 0.74], [5584, 3, 6, 1.3], [8635, 3, 8, 0.32], [2878, 1, 7, 2.76], [60, 3, 12, 0.53], [66, 16, 4, 0.39], [330, 3, 6, 1.02], [6098, 29, 16, 0.78], [8677, 3, 8, 0.33], [8675, 2, 9, 0.61], [11954, 1, 6, 0.55], [5005, 3, 11, 0.44], [13034, 3, 10, 0.83], [2775, 2, 6, 0.74], [5946, 1, 4, 0.77], [82, 2, 4, 0.36], [105, 3, 4, 0.32], [8120, 3, 7, 0.28], [952, 4, 4, 1.02], [62, 3, 16, 0.73], [8943, 3, 6, 0.56], [6398, 332, 13, 0.0], [1414, 15, 4, 0.4], [24, 1, 4, 0.15], [11914, 1, 15, 0.57], [22316, 3, 8, 0.55], [22179, 1, 6, 0.53], [10631, 2, 6, 0.56], [972, 3, 8, 0.53], [9760, 29, 7, 0.1], [11738, 2, 4, 0.58], [3980, 4, 7, 0.69], [856, 1, 4, 0.36], [142, 2, 7, 0.54], [434, 2, 12, 0.75], [27, 1, 4, 0.14], [9081, 3, 16, 0.81], [2322, 2, 6, 0.67], [97, 11, 27, 0.77], [12661, 1, 7, 2.24], [8104, 1, 11, 0.04], [11491, 2, 4, 0.46], [2109, 3, 18, 0.44], [8898, 3, 8, 1.6], [6218, 7, 8, 0.0], [11769, 1, 7, 0.0], [39, 1, 4, 0.63], [13965, 1, 6, 0.39], [66, 15, 4, 0.38], [9082, 3, 35, 0.95], [11081, 3, 6, 1.09], [8286, 2, 8, 0.3], [107, 2, 7, 0.62], [6341, 3, 16, 0.0], [6396, 7, 12, 0.0], [20255, 2, 10, 0.75], [2497, 2, 8, 1.2], [2104, 3, 12, 0.64], [583, 2, 6, 0.45], [1091, 1, 4, 0.36], [590, 15, 4, 0.26], [12924, 1, 8, 0.32], [71, 15, 4, 0.39], [34, 1, 4, 0.63], [6222, 7, 8, 0.0], [13964, 1, 6, 0.44], [13968, 1, 4, 0.4], [6561, 3, 10, 0.0], [38, 1, 4, 0.63], [5813, 3, 6, 0.73], [524, 1, 4, 0.57], [431, 2, 11, 0.22], [2423, 80, 7, 0.8], [9372, 1, 16, 0.47], [6225, 7, 11, 0.0], [7558, 3, 4, 0.32], [11116, 1, 6, 0.29], [9691, 1, 4, 0.42], [1080, 3, 5, 2.26], [5811, 3, 6, 0.7], [1519, 3, 21, 0.36], [490, 1, 8, 0.51], [399, 24, 4, 0.71], [13962, 1, 4, 0.43], [20486, 3, 8, 1.03], [6497, 1, 11, 0.74], [4203, 1, 6, 0.39], [20486, 1, 4, 0.0], [2331, 1, 4, 0.66], [9065, 2, 6, 0.23], [345, 1, 8, 0.0], [6799, 7, 12, 0.0], [6525, 7, 19, 0.0], [8283, 2, 7, 0.32], [584, 2, 4, 0.46], [11770, 1, 8, 0.42], [11674, 1, 6, 0.0], [170, 3, 6, 0.87], [10407, 10, 12, 2.09], [10780, 10, 6, 1.44], [11671, 1, 10, 0.81], [6398, 1, 6, 0.0], [3670, 2, 13, 1.05], [14017, 3, 6, 0.15], [20498, 1, 7, 0.0], [406, 3, 11, 0.85], [5086, 3, 6, 1.7], [286, 3, 6, 0.76], [159, 1, 11, 0.3], [5083, 2, 10, 0.41], [10406, 10, 12, 0.66], [3900, 3, 4, 0.61], [1339, 3, 19, 0.37], [2703, 3, 6, 0.59], [13484, 1, 7, 1.0], [11454, 2, 17, 3.57], [9507, 1, 4, 0.21], [6805, 1, 7, 0.56], [8945, 1, 4, 0.0], [2424, 80, 7, 0.88], [922, 1, 4, 0.16], [19931, 1, 7, 0.34], [13033, 3, 10, 0.83], [974, 3, 7, 0.7], [12662, 1, 4, 0.58], [435, 2, 7, 0.73], [11794, 2, 8, 0.26], [1699, 3, 4, 0.54], [12496, 3, 8, 0.51], [9796, 3, 15, 0.67], [11085, 2, 8, 0.38], [11504, 2, 4, 0.46], [10529, 80, 7, 0.82], [11953, 1, 7, 1.28], [972, 1, 4, 0.53], [957, 2, 6, 0.33], [10172, 3, 10, 1.0], [12059, 3, 7, 0.34], [2424, 29, 29, 0.88], [9828, 3, 4, 0.42], [3016, 68, 4, 0.3], [93, 11, 23, 0.71], [6342, 3, 12, 0.0], [12058, 3, 7, 0.34], [6494, 1, 6, 0.75], [3475, 2, 4, 0.54], [12764, 2, 8, 0.56], [14018, 3, 6, 0.14], [40, 1, 4, 0.14], [11159, 1, 27, 0.69], [788, 2, 4, 0.4], [22554, 10, 15, 0.52], [389, 4, 4, 0.72], [7324, 1, 4, 0.5], [9613, 1, 4, 0.14], [22317, 3, 8, 0.6], [215, 4, 4, 0.99], [6223, 7, 7, 0.0], [2336, 3, 10, 0.43], [20498, 3, 8, 0.84], [9854, 1, 4, 0.83], [2537, 1, 4, 0.52], [21059, 1, 7, 0.63], [12369, 3, 12, 1.35], [2776, 2, 6, 0.74], [6575, 3, 6, 0.82], [973, 3, 11, 0.62], [424, 11, 15, 0.83], [6560, 3, 8, 0.0], [202, 2, 4, 0.31], [2991, 1, 4, 0.84], [10530, 29, 19, 0.81], [3456, 3, 6, 0.44], [14041, 3, 6, 0.28], [9964, 2, 6, 0.74], [12497, 3, 7, 0.52], [470, 1, 4, 0.26], [991, 2, 4, 0.54], [1661, 3, 4, 0.54], [823, 1, 8, 0.81], [6207, 7, 12, 0.0], [12923, 1, 10, 0.32], [1087, 1, 6, 0.58], [12269, 2, 4, 0.44], [11510, 3, 8, 0.64], [6792, 2, 4, 0.44], [3104, 1, 10, 0.88], [11687, 2, 6, 0.2], [7729, 7, 13, 0.0], [11952, 1, 7, 1.36], [2103, 15, 4, 0.4], [12355, 3, 7, 1.31], [9049, 2, 4, 0.63], [11080, 3, 6, 1.63], [523, 2, 6, 0.54], [26, 1, 4, 0.14], [2726, 3, 6, 0.97], [11689, 2, 6, 0.2], [951, 4, 4, 0.49], [1604, 68, 4, 0.62], [8944, 3, 4, 0.35], [471, 1, 4, 0.28], [491, 10, 13, 0.58], [2854, 21, 11, 0.46], [19047, 3, 6, 0.25], [36, 1, 4, 0.63], [12223, 1, 4, 0.51], [2423, 29, 19, 0.8], [9797, 3, 15, 0.67], [10397, 3, 6, 0.68], [6206, 3, 11, 0.0], [5453, 1, 6, 0.77], [3892, 1, 4, 0.63], [585, 2, 4, 0.35], [37, 1, 4, 0.63], [19971, 3, 6, 0.51], [11089, 1, 7, 0.58], [9785, 1, 4, 0.52], [12362, 3, 7, 1.31], [7724, 3, 4, 0.71], [9, 1, 4, 0.34], [2879, 1, 4, 0.54], [10172, 1, 7, 1.0], [5585, 3, 6, 1.26], [949, 10, 10, 0.41], [9998, 80, 4, 0.43], [409, 1, 4, 0.38], [5165, 1, 19, 0.38], [5734, 2, 4, 0.34], [6422, 3, 6, 0.67], [8285, 2, 6, 0.36], [107, 7, 9, 0.62], [1895, 3, 6, 0.85], [1413, 16, 4, 0.4], [11690, 2, 6, 0.22], [20649, 1, 4, 0.76], [3341, 3, 4, 1.08], [18, 1, 6, 0.15], [6565, 7, 11, 0.0], [1801, 1, 4, 0.73], [7007, 1, 4, 0.48], [13110, 3, 10, 1.35], [11813, 1, 6, 0.56], [10409, 10, 11, 0.64], [11903, 332, 14, 0.0], [10408, 10, 11, 0.55], [6209, 7, 10, 0.0], [21060, 1, 6, 0.63], [18964, 1, 4, 0.56], [10410, 10, 10, 2.08], [8557, 3, 6, 0.4], [3899, 3, 4, 0.4], [440, 3, 4, 1.76], [8904, 7, 21, 0.0], [3143, 3, 4, 0.88], [10093, 3, 16, 0.88], [201, 1, 6, 0.0], [9830, 3, 4, 0.36], [10537, 3, 8, 0.35], [6235, 7, 13, 0.0], [1667, 3, 4, 0.54], [6198, 7, 11, 0.0], [3429, 15, 4, 0.39], [13258, 25, 6, 0.71], [4076, 3, 6, 0.93], [2990, 3, 6, 0.74], [615, 2, 30, 0.55], [956, 2, 6, 0.41], [169, 4, 4, 0.44], [6630, 3, 4, 0.53], [2912, 1, 17, 0.4], [1185, 3, 4, 1.1], [1339, 1, 4, 0.35], [1070, 2, 4, 0.51], [13263, 29, 7, 0.59], [289, 3, 6, 0.65], [13259, 25, 4, 0.93], [8897, 3, 6, 1.59], [19583, 3, 6, 0.79], [13258, 29, 11, 0.71], [10514, 3, 7, 0.29], [11707, 3, 8, 0.78], [11812, 1, 7, 0.37], [3049, 3, 6, 0.88], [3610, 24, 4, 1.09], [1049, 2, 4, 0.35], [3894, 1, 4, 0.77], [407, 3, 7, 0.85], [11768, 1, 6, 0.0], [1309, 1, 4, 0.58], [11772, 1, 8, 1.31], [11771, 1, 7, 0.0], [12358, 3, 8, 1.32], [10936, 2, 4, 1.07], [10482, 7, 15, 0.0], [8927, 10, 16, 0.29], [288, 3, 6, 0.65], [11084, 2, 6, 0.38], [2859, 15, 4, 0.55], [6343, 3, 10, 0.0], [5493, 2, 12, 0.58], [10717, 3, 7, 0.36], [12964, 3, 6, 1.34], [11160, 1, 13, 0.73], [71, 16, 4, 0.38], [5646, 2, 4, 0.38], [5730, 2, 4, 0.34], [2105, 3, 10, 0.44], [11814, 1, 6, 0.42], [11087, 2, 6, 0.38], [2729, 3, 4, 0.93], [11485, 24, 6, 1.48], [7182, 1, 4, 0.54], [6339, 3, 8, 0.0], [4253, 1, 6, 0.62], [5435, 1, 4, 0.39], [6952, 1, 11, 0.79], [11793, 2, 13, 0.8], [515, 24, 6, 1.02], [11088, 2, 6, 0.38], [2318, 2, 4, 0.41], [11213, 4, 6, 2.12], [11179, 1, 6, 0.43], [111, 1, 4, 0.14], [11644, 1, 4, 0.57], [5434, 1, 4, 0.57], [70, 16, 4, 0.34], [6540, 25, 4, 0.76], [12357, 3, 7, 1.33], [6424, 3, 6, 0.72], [19932, 1, 7, 0.38], [3257, 4, 4, 1.04], [10939, 2, 4, 1.07], [10530, 80, 6, 0.81], [2774, 2, 10, 1.19], [23961, 3, 4, 0.55], [6259, 7, 32, 0.0], [10716, 3, 6, 0.27], [380, 2, 4, 0.35], [20555, 2, 4, 0.6], [11180, 1, 6, 0.43], [5490, 2, 4, 0.47], [5666, 2, 4, 0.76], [9786, 1, 4, 0.52], [1622, 1, 11, 0.28], [5165, 2, 9, 0.38], [12373, 1, 13, 0.39], [21712, 3, 23, 0.5], [616, 2, 21, 0.56], [11586, 1, 11, 0.81], [405, 3, 7, 0.85], [2108, 3, 10, 0.35], [8676, 2, 10, 0.61], [6340, 3, 7, 0.0], [9783, 1, 4, 0.6], [11526, 10, 11, 0.29], [1413, 1, 4, 0.4], [3994, 1, 4, 0.39], [159, 16, 4, 0.3], [21703, 3, 6, 1.04], [10411, 10, 9, 0.57], [11677, 1, 13, 0.87], [6864, 1, 4, 0.7], [3434, 2, 4, 0.66], [10488, 7, 12, 0.0], [12356, 3, 6, 1.04], [5153, 2, 16, 0.13], [3059, 3, 4, 0.93], [2422, 80, 6, 0.84], [6259, 1, 4, 0.0], [13323, 3, 6, 0.52], [9358, 1, 6, 0.71], [12229, 2, 4, 0.55], [3047, 3, 7, 0.89], [13893, 2, 6, 0.74], [8054, 1, 4, 0.64], [11706, 3, 6, 0.49], [2103, 16, 4, 0.4], [3961, 1, 4, 0.38], [13259, 29, 11, 0.0], [12010, 3, 4, 0.0], [12501, 1, 6, 0.0], [9787, 1, 4, 0.54], [880, 2, 4, 1.51], [19972, 3, 6, 0.52], [2368, 3, 8, 0.28], [563, 2, 4, 0.35], [20969, 3, 8, 1.15], [1050, 2, 4, 0.35], [11039, 2, 6, 0.94], [10941, 2, 4, 1.07], [10406, 1, 4, 0.61], [10633, 2, 4, 0.56], [11236, 2, 7, 0.65], [10940, 2, 4, 1.07], [147, 1, 4, 0.75], [6317, 7, 16, 0.0], [10828, 7, 24, 0.0], [1414, 16, 4, 0.4], [13023, 3, 10, 0.6], [12925, 1, 7, 0.31], [8510, 7, 17, 0.0], [11856, 1, 4, 0.77], [11710, 1, 11, 0.44], [6562, 3, 6, 0.0], [3430, 15, 4, 0.61], [2912, 2, 10, 0.4], [10149, 1, 4, 0.35], [5812, 1, 4, 0.48], [8891, 1, 6, 0.0], [9491, 21, 13, 0.43], [7457, 3, 10, 0.42], [8753, 2, 6, 0.53], [2369, 3, 8, 0.43], [7707, 2, 6, 0.62], [11399, 2, 4, 0.45], [8685, 3, 6, 1.43], [6219, 7, 6, 0.0], [1602, 68, 4, 1.07], [11164, 1, 17, 0.96], [942, 3, 6, 0.64], [13264, 29, 4, 0.48], [789, 2, 4, 0.4], [10398, 2, 7, 0.47], [332, 2, 4, 0.31], [11967, 1, 4, 0.37], [5491, 2, 7, 0.56], [1668, 1, 4, 0.59], [10516, 3, 6, 0.73], [12361, 3, 7, 1.34], [6566, 7, 7, 0.0], [3981, 3, 19, 0.87], [10626, 7, 13, 0.0], [21697, 3, 4, 0.57], [7702, 2, 12, 0.62], [1548, 1, 6, 0.59], [10407, 1, 4, 0.0], [220, 4, 4, 1.04], [8284, 2, 6, 0.33], [1065, 7, 15, 0.43], [21704, 3, 21, 0.37], [2335, 3, 6, 0.81], [13498, 3, 7, 0.93], [148, 1, 4, 0.75], [12369, 1, 7, 0.0], [8756, 2, 6, 0.53], [3840, 1, 4, 0.35], [23611, 3, 6, 0.81], [11919, 1, 10, 0.36], [12526, 2, 7, 0.49], [354, 2, 4, 0.32], [11710, 3, 8, 0.44], [353, 1, 4, 0.63], [21683, 3, 6, 0.79], [9803, 3, 13, 0.38], [6034, 23, 8, 0.9], [11402, 1, 6, 0.85], [7704, 2, 7, 0.62], [6570, 7, 10, 0.0], [3674, 2, 11, 0.89], [11427, 2, 6, 0.3], [10536, 3, 6, 0.31], [6266, 23, 15, 0.43], [6628, 3, 4, 0.35], [439, 1, 4, 0.8], [6540, 29, 12, 0.76], [2728, 3, 4, 0.64], [6800, 7, 7, 0.0], [10632, 2, 4, 0.56], [20188, 3, 4, 1.21], [6627, 3, 4, 0.34], [975, 3, 6, 0.3], [4176, 4, 6, 0.69], [11643, 1, 4, 0.57], [2733, 3, 4, 0.94], [2099, 2, 4, 0.56], [13481, 1, 4, 1.0], [1767, 25, 6, 0.44], [4372, 10, 13, 0.65], [3340, 3, 4, 1.55], [947, 15, 4, 0.52], [2803, 2, 13, 1.05], [11104, 3, 4, 1.53], [10630, 2, 4, 0.56], [9971, 2, 4, 0.74], [9124, 1, 6, 0.72], [1038, 2, 6, 0.23], [11717, 3, 6, 1.84], [11494, 1, 4, 0.38], [2438, 2, 10, 0.45], [22029, 3, 4, 0.95], [9997, 80, 4, 0.76], [3258, 1, 6, 0.68], [247, 1, 4, 0.78], [8636, 3, 8, 1.27], [12417, 1, 6, 0.63], [3982, 3, 19, 0.84], [11846, 3, 6, 0.59], [1601, 68, 4, 1.11], [10937, 2, 4, 1.07], [2538, 1, 4, 0.0], [6496, 1, 8, 1.06], [6567, 7, 14, 0.0], [21269, 1, 4, 0.0], [11163, 1, 24, 0.78], [8754, 2, 6, 0.35], [6629, 3, 4, 0.42], [958, 2, 4, 0.35], [21699, 3, 7, 0.57], [1120, 1, 6, 0.36], [20650, 1, 4, 0.8], [3021, 68, 4, 0.37], [13483, 1, 4, 1.0], [11450, 2, 6, 0.28], [14039, 3, 7, 0.37], [11868, 3, 7, 0.59], [7705, 2, 7, 0.62], [13024, 3, 8, 0.97], [22318, 3, 6, 0.82], [19583, 1, 4, 0.0], [6234, 7, 11, 0.0], [11181, 1, 15, 0.95], [11887, 2, 6, 0.48], [12979, 25, 12, 0.59], [2436, 4, 4, 1.0], [590, 16, 4, 0.26], [167, 1, 6, 0.0], [2422, 29, 8, 0.85], [292, 3, 6, 0.65], [7885, 1, 4, 0.26], [1766, 25, 7, 0.41], [9945, 3, 7, 0.31], [5939, 3, 4, 0.63], [8600, 1, 4, 0.62], [3258, 7, 7, 0.68], [3898, 3, 4, 0.41], [10524, 29, 8, 0.81], [23339, 3, 4, 0.4], [11611, 2, 4, 0.46], [8688, 14, 8, 0.57], [22565, 3, 6, 0.74], [2821, 3, 14, 0.45], [2738, 3, 6, 0.89], [624, 2, 20, 0.57], [12304, 1, 7, 0.83], [11583, 29, 6, 0.37], [3909, 7, 15, 0.65], [96, 1, 7, 0.0], [7360, 3, 4, 0.39], [21713, 3, 15, 0.35], [5152, 2, 10, 0.94], [11773, 1, 6, 0.6], [2992, 3, 6, 0.98], [21700, 3, 4, 1.06], [11885, 2, 6, 0.49], [6668, 332, 12, 0.0], [109, 4, 4, 1.02], [7522, 7, 19, 0.0], [11161, 1, 11, 0.6], [21476, 7, 8, 0.93], [938, 3, 6, 0.64], [13482, 1, 4, 1.0], [192, 3, 14, 0.58], [10412, 10, 8, 0.39], [9204, 3, 6, 0.0], [80, 1, 4, 0.57], [8891, 7, 25, 0.0], [10825, 1, 6, 0.44], [12271, 2, 4, 0.44], [2727, 3, 4, 1.08], [336, 16, 4, 0.33], [955, 2, 6, 0.83], [12647, 1, 6, 0.68], [6236, 7, 12, 0.0], [216, 4, 4, 0.62], [21003, 2, 6, 0.84], [11467, 1, 4, 0.76], [11183, 1, 8, 1.42], [6399, 7, 21, 0.0], [12241, 3, 6, 0.28], [19977, 2, 11, 1.88], [2421, 80, 6, 0.39], [1701, 2, 4, 1.58], [11886, 2, 6, 0.55], [22558, 3, 7, 1.73], [10527, 3, 15, 0.9], [944, 15, 4, 0.3], [8902, 7, 15, 0.0], [9910, 25, 4, 0.36], [13491, 7, 6, 0.91], [10581, 3, 7, 1.22], [21317, 3, 4, 0.34], [1274, 1, 4, 0.82], [2417, 29, 8, 0.69], [408, 3, 6, 0.85], [186, 3, 11, 0.61], [8356, 1, 4, 0.58], [12360, 3, 6, 1.31], [11158, 1, 25, 0.75], [11890, 2, 6, 1.39], [1299, 3, 10, 0.48], [4372, 1, 4, 0.67], [13025, 3, 8, 0.97], [7300, 7, 15, 0.0], [448, 1, 4, 0.45], [11936, 2, 4, 1.07], [10524, 80, 4, 0.81], [2935, 1, 4, 0.41], [344, 25, 4, 0.63], [632, 11, 21, 0.0], [72, 1, 4, 0.59], [2108, 1, 4, 0.36], [8659, 1, 4, 0.38], [3975, 4, 4, 0.69], [331, 3, 6, 0.45], [9068, 1, 4, 0.48], [5940, 3, 4, 0.6], [9138, 2, 6, 0.66], [11495, 1, 4, 0.6], [2916, 1, 4, 0.44], [9778, 1, 4, 0.53], [2326, 2, 4, 0.0], [8686, 3, 7, 1.43], [3088, 1, 4, 0.3], [3559, 11, 19, 0.34], [5083, 12, 15, 0.43], [22590, 1, 4, 0.36], [7703, 2, 4, 0.62], [11718, 3, 6, 1.83], [11775, 1, 6, 0.63], [12728, 1, 6, 0.0], [3977, 3, 4, 0.96], [5007, 3, 8, 0.57], [8943, 1, 4, 0.57], [11288, 2, 4, 2.38], [6267, 23, 15, 0.43], [454, 3, 6, 0.65], [3908, 7, 12, 1.3], [21316, 3, 4, 0.34], [7708, 2, 4, 0.62], [10413, 10, 7, 1.25], [11678, 1, 8, 1.16], [6787, 7, 11, 0.0], [5076, 1, 20, 0.69], [8599, 1, 4, 0.7], [10409, 1, 4, 0.59], [3983, 4, 4, 0.69], [9342, 2, 6, 1.39], [10616, 1, 4, 0.0], [6394, 1, 4, 0.0], [23491, 3, 5, 0.26], [2100, 25, 4, 0.5], [7521, 7, 15, 0.0], [9777, 1, 4, 0.52], [1880, 4, 4, 2.09], [11090, 1, 4, 0.29], [19582, 3, 6, 0.79], [11968, 1, 4, 0.2], [7513, 1, 4, 0.0], [19764, 2, 7, 0.31], [5111, 1, 4, 0.71], [2161, 1, 4, 0.38], [1414, 1, 4, 0.4], [973, 1, 4, 0.0], [9126, 1, 7, 0.72], [11435, 2, 6, 0.29], [13257, 25, 4, 0.69], [12791, 2, 10, 0.42], [7513, 7, 21, 0.0], [6233, 7, 15, 0.0], [5658, 68, 4, 0.36], [4032, 29, 11, 0.82], [3551, 3, 4, 0.42], [9996, 80, 4, 0.92], [21927, 1, 4, 0.24], [9533, 7, 14, 0.0], [23489, 3, 4, 0.76], [5494, 2, 4, 0.56], [11304, 2, 4, 2.38], [12053, 2, 7, 0.76], [12368, 3, 6, 1.36], [71, 1, 4, 0.38], [7886, 1, 4, 0.31], [12621, 1, 4, 0.8], [6235, 1, 4, 0.0], [12722, 2, 6, 0.68], [8085, 1, 4, 0.58], [10483, 7, 10, 0.0], [9965, 2, 4, 0.74], [11587, 1, 8, 0.92], [11564, 29, 10, 0.43], [12363, 3, 6, 1.32], [11178, 1, 4, 0.4], [8068, 3, 12, 0.0], [334, 25, 4, 0.62], [13107, 3, 8, 2.17], [28, 1, 4, 0.66], [20196, 2, 7, 0.84], [23341, 3, 4, 0.4], [436, 2, 6, 0.69], [9083, 3, 6, 0.73], [8681, 3, 6, 0.36], [12417, 3, 7, 0.65], [13036, 3, 7, 0.96], [11961, 1, 4, 0.45], [21683, 1, 4, 0.0], [19581, 3, 6, 0.79], [9803, 138, 4, 0.38], [11409, 7, 12, 0.44], [17, 1, 4, 0.16], [12979, 1, 4, 0.57], [14029, 3, 4, 0.6], [3028, 3, 4, 0.3], [21806, 1, 4, 0.0], [20190, 3, 6, 1.24], [2735, 3, 4, 1.09], [1055, 2, 4, 0.28], [5644, 3, 4, 1.46], [8188, 10, 10, 0.4], [12234, 3, 4, 1.41], [7250, 3, 6, 0.31], [1300, 3, 6, 0.65], [21946, 1, 4, 0.97], [11920, 1, 7, 0.39], [14038, 3, 6, 0.52], [12913, 3, 4, 0.28], [11858, 1, 4, 0.77], [6036, 23, 6, 0.9], [560, 1, 4, 1.02], [1431, 3, 7, 0.48], [11960, 3, 6, 0.24], [7706, 2, 4, 0.62], [2417, 80, 4, 0.69], [2323, 2, 4, 0.67], [5452, 1, 4, 0.55], [8896, 1, 4, 1.02], [2945, 3, 6, 0.82], [21783, 2, 4, 0.35], [8637, 3, 7, 1.38], [1066, 7, 10, 0.22], [19341, 2, 4, 0.36], [23493, 3, 4, 0.26], [11048, 1, 6, 0.47], [3079, 3, 4, 0.44], [10082, 23, 10, 0.58], [5642, 3, 4, 1.46], [10780, 3, 4, 1.43], [5341, 15, 4, 0.55], [2734, 3, 4, 2.14], [5831, 3, 4, 1.46], [12235, 3, 4, 1.41], [1767, 2, 5, 0.44], [2013, 2, 4, 0.77], [506, 1, 4, 0.75], [168, 1, 4, 0.52], [10080, 3, 4, 0.0], [9995, 80, 4, 0.34], [12055, 2, 6, 0.76], [10487, 7, 8, 0.0], [6055, 3, 6, 0.47], [6195, 7, 11, 0.0], [2528, 29, 4, 0.53], [11844, 2, 7, 0.6], [2730, 3, 4, 0.93], [19375, 3, 4, 0.31], [1120, 3, 7, 0.36], [12535, 2, 4, 0.3], [12653, 1, 10, 0.34], [12054, 2, 6, 0.76], [13104, 3, 9, 2.16], [11930, 1, 4, 1.15], [10521, 3, 6, 0.64], [11150, 1, 4, 0.36], [3477, 2, 4, 0.43], [214, 1, 4, 0.37], [12212, 29, 7, 0.48], [9355, 1, 8, 0.55], [13266, 29, 4, 0.43], [8286, 1, 4, 0.31], [21781, 2, 4, 0.29], [3910, 7, 13, 0.65], [3673, 2, 8, 1.06], [1523, 1, 4, 0.95], [10531, 14, 11, 0.5], [11157, 11, 10, 0.33], [9781, 1, 4, 0.58], [6035, 23, 6, 0.9], [6056, 3, 7, 0.48], [10638, 2, 4, 0.56], [12236, 3, 8, 0.29], [3553, 3, 4, 0.42], [20963, 3, 6, 1.15], [4232, 80, 6, 0.82], [3016, 3, 4, 0.3], [9070, 1, 5, 0.36], [11855, 1, 4, 0.77], [10816, 3, 6, 1.99], [12490, 2, 4, 0.67], [13133, 3, 6, 1.36], [936, 3, 7, 0.73], [12729, 1, 6, 0.0], [2104, 1, 4, 0.63], [12270, 2, 4, 0.45], [23960, 3, 4, 0.64], [12367, 3, 6, 1.35], [4175, 3, 15, 0.87], [10275, 3, 6, 0.38], [20920, 3, 6, 0.53], [3906, 14, 7, 0.58], [1766, 2, 4, 0.42], [10408, 1, 6, 0.52], [8683, 3, 7, 0.53], [10540, 3, 4, 0.31], [12935, 3, 6, 0.77], [21010, 2, 5, 0.84], [21705, 3, 11, 0.97], [12057, 2, 7, 0.76], [13257, 29, 8, 0.69], [7084, 1, 4, 0.0], [13249, 29, 21, 1.36], [23494, 3, 4, 0.26], [7457, 1, 6, 0.43], [8904, 1, 4, 0.0], [19331, 2, 4, 0.31], [3337, 1, 4, 0.68], [13037, 3, 6, 0.96], [19924, 2, 7, 0.38], [9186, 29, 4, 0.4], [10828, 1, 4, 0.0], [10414, 10, 7, 0.39], [432, 1, 4, 0.47], [22693, 3, 4, 0.47], [5343, 15, 4, 0.52], [6208, 7, 10, 0.0], [1886, 2, 6, 2.09], [9840, 25, 10, 0.41], [21480, 7, 8, 1.01], [10114, 3, 16, 0.0], [10410, 1, 4, 0.0], [12365, 3, 7, 1.03], [2103, 1, 4, 0.4], [6957, 7, 18, 0.81], [20259, 2, 4, 0.48], [21807, 1, 4, 0.0], [8281, 2, 6, 1.39], [5650, 2, 4, 0.39], [2736, 3, 4, 1.08], [1575, 1, 4, 0.68], [13268, 29, 4, 0.81], [149, 2, 4, 0.75], [344, 2, 4, 0.63], [1024, 1, 4, 0.34], [60, 1, 4, 0.53], [22696, 3, 4, 0.47], [5340, 23, 8, 0.4], [23492, 3, 4, 0.26], [11618, 1, 4, 0.52], [70, 1, 4, 0.34], [11867, 3, 6, 0.64], [4586, 10, 19, 0.39], [825, 1, 4, 0.26], [21810, 1, 4, 0.0], [21809, 1, 4, 0.0], [2539, 29, 7, 0.37], [3562, 3, 4, 0.42], [9087, 25, 4, 0.8], [1409, 15, 4, 0.35], [11091, 1, 4, 0.29], [5577, 3, 4, 1.32], [11290, 2, 4, 2.38], [20964, 3, 8, 1.15], [21170, 10, 10, 0.6], [13106, 3, 6, 2.16], [11895, 1, 6, 0.28], [19334, 2, 4, 0.34], [9788, 1, 4, 0.52], [11054, 3, 6, 1.73], [8586, 7, 10, 0.0], [1765, 25, 6, 1.21], [5976, 1, 4, 0.39], [8283, 1, 4, 0.33], [3905, 14, 7, 0.0], [9239, 25, 4, 0.76], [9841, 25, 11, 0.41], [21954, 10, 7, 0.6], [12764, 1, 4, 0.54], [9608, 1, 4, 0.13], [963, 3, 4, 0.73], [20966, 3, 6, 1.15], [23276, 3, 7, 0.79], [9344, 332, 7, 0.0], [11641, 1, 4, 0.57], [10669, 3, 6, 0.55], [11659, 3, 4, 0.91], [19223, 1, 4, 0.0], [11960, 1, 4, 0.24], [6197, 7, 13, 0.0], [13041, 3, 4, 0.42], [11896, 2, 4, 0.35], [10279, 3, 6, 1.62], [11962, 1, 4, 0.58], [9910, 29, 6, 0.36], [10517, 29, 13, 0.9], [21953, 10, 6, 0.6], [8106, 10, 4, 0.55], [11092, 1, 4, 0.29], [21701, 3, 4, 1.04], [2732, 3, 4, 1.14], [1068, 7, 14, 0.38], [7525, 7, 11, 0.0], [1139, 3, 4, 0.3], [5020, 23, 18, 0.48], [8674, 2, 7, 0.61], [3552, 3, 4, 0.42], [11150, 2, 8, 0.37], [22691, 3, 4, 0.47], [12646, 1, 6, 0.69], [20208, 3, 4, 0.3], [4033, 29, 19, 0.64], [12912, 3, 4, 0.3], [10668, 3, 6, 0.58], [3421, 3, 21, 0.3], [4898, 332, 4, 0.0], [4327, 1, 4, 0.43], [11339, 3, 4, 0.89], [110, 1, 4, 0.0], [1095, 2, 6, 0.31], [12239, 3, 6, 0.26], [2217, 1, 4, 0.44], [12871, 1, 12, 0.44], [20965, 3, 6, 1.15], [21463, 7, 6, 0.58], [23335, 14, 7, 0.57], [3071, 3, 4, 0.47], [10083, 23, 10, 0.58], [21820, 2, 4, 0.35], [3576, 25, 4, 0.61], [8058, 3, 6, 0.8], [11965, 1, 4, 0.35], [512, 24, 4, 2.17], [11859, 1, 4, 0.77], [2709, 15, 4, 0.56], [12240, 14, 5, 0.27], [31, 1, 4, 0.66], [6052, 3, 6, 0.46], [9967, 2, 4, 0.74], [2406, 29, 6, 0.71], [9998, 29, 5, 0.43], [21706, 3, 17, 0.32], [6785, 7, 11, 0.0], [8139, 7, 14, 0.0], [11526, 1, 4, 0.27], [59, 1, 4, 0.0], [5341, 16, 4, 0.55], [12474, 3, 6, 1.3], [6966, 3, 4, 0.89], [5243, 3, 6, 0.43], [9779, 1, 4, 0.59], [3334, 5, 7, 0.85], [21712, 1, 4, 0.44], [790, 2, 4, 0.28], [11105, 3, 4, 0.41], [23032, 3, 5, 0.59], [13034, 1, 4, 0.0], [8167, 7, 6, 0.8], [12159, 2, 4, 0.41], [14, 1, 4, 0.54], [19765, 2, 4, 0.31], [23040, 10, 9, 2.09], [11854, 1, 4, 0.77], [12426, 3, 6, 0.41], [21468, 7, 7, 0.56], [10384, 3, 4, 0.32], [12637, 1, 6, 0.48], [12538, 3, 7, 0.33], [152, 1, 4, 0.0], [21481, 7, 6, 0.96], [14040, 3, 6, 0.26], [22879, 3, 4, 0.57], [2990, 1, 6, 0.75], [11564, 80, 4, 0.43], [21698, 3, 4, 0.56], [13105, 3, 6, 2.16], [11156, 11, 7, 0.32], [22697, 3, 4, 0.47], [5648, 2, 4, 0.42], [3053, 3, 4, 0.63], [2325, 2, 4, 0.65], [19361, 23, 6, 0.38], [3970, 2, 4, 1.63], [5851, 1, 6, 0.28], [21955, 10, 6, 0.6], [22874, 3, 4, 0.56], [2805, 137, 7, 0.86], [2365, 3, 6, 0.61], [6057, 3, 6, 0.48], [1511, 3, 8, 0.32], [10507, 2, 4, 0.29], [11485, 1, 6, 0.0], [9253, 3, 6, 0.64], [2406, 80, 7, 0.71], [8280, 2, 6, 1.39], [9087, 29, 6, 0.8], [8279, 2, 6, 1.39], [11719, 3, 8, 2.22], [8191, 10, 10, 0.38], [6668, 1, 5, 0.0], [23275, 2, 4, 0.54], [3379, 3, 4, 0.63], [7362, 3, 4, 0.39], [12952, 21, 4, 1.37], [11891, 3, 8, 0.71], [8690, 10, 7, 0.33], [23490, 3, 4, 0.76], [2287, 25, 4, 0.7], [21686, 3, 10, 1.35], [7564, 7, 7, 0.0], [11894, 2, 4, 0.57], [2934, 1, 4, 0.38], [3048, 3, 7, 0.91], [11503, 1, 4, 1.29], [9544, 7, 8, 0.0], [12930, 2, 6, 0.34], [2366, 3, 4, 0.62], [7573, 1, 11, 0.63], [8906, 7, 11, 0.0], [1744, 1, 4, 0.64], [3495, 1, 4, 0.56], [10574, 1, 4, 0.34], [1406, 25, 4, 0.47], [2836, 3, 11, 0.45], [3575, 25, 4, 0.65], [2438, 1, 4, 0.43], [12340, 2, 4, 0.57], [8059, 3, 6, 0.81], [22910, 3, 6, 0.77], [19582, 1, 4, 0.0], [3462, 2, 4, 0.69], [3429, 16, 4, 0.39], [334, 2, 4, 0.0], [11722, 3, 6, 1.98], [10906, 3, 24, 0.39], [11613, 2, 4, 0.46], [11619, 1, 4, 0.52], [21474, 7, 4, 0.68], [5342, 23, 9, 0.38], [22553, 10, 12, 0.43], [9125, 1, 8, 0.72], [10254, 1, 4, 0.97], [11055, 3, 7, 1.97], [11633, 1, 4, 0.36], [22573, 2, 4, 0.54], [6489, 11, 21, 0.35], [12475, 3, 6, 1.1], [23234, 25, 4, 0.46], [11857, 1, 4, 0.77], [12517, 2, 7, 0.76], [394, 10, 10, 0.38], [4223, 4, 4, 0.8], [6054, 3, 6, 0.48], [11152, 11, 10, 0.37], [2835, 3, 10, 0.47], [10640, 3, 6, 0.64], [1691, 1, 4, 0.82], [3609, 24, 4, 0.64], [9209, 25, 4, 0.67], [11498, 1, 4, 0.55], [4001, 3, 18, 0.84], [21091, 7, 4, 0.29], [2169, 3, 6, 0.47], [21315, 3, 4, 0.34], [21626, 1, 4, 0.12], [8903, 7, 13, 0.0], [11306, 2, 4, 1.69], [12587, 3, 6, 0.77], [10455, 29, 4, 0.05], [20919, 3, 4, 0.38], [10580, 3, 6, 1.46], [88, 1, 4, 0.61], [12917, 3, 4, 0.29], [3561, 3, 4, 0.42], [20956, 7, 9, 0.62], [12675, 3, 4, 0.55], [3386, 1, 4, 1.02], [6931, 2, 4, 0.58], [12992, 3, 10, 0.4], [9346, 332, 6, 0.0], [22922, 3, 4, 0.79], [2100, 2, 4, 0.5], [6396, 1, 4, 0.0], [61, 1, 4, 0.0], [11642, 1, 4, 0.56], [12338, 29, 5, 0.33], [2608, 1, 4, 0.33], [11909, 3, 4, 0.6], [22921, 3, 4, 0.79], [2111, 3, 11, 0.38], [11085, 1, 4, 0.39], [2859, 16, 4, 0.55], [11154, 11, 11, 0.33], [7624, 7, 11, 0.0], [10640, 1, 6, 0.64], [9084, 3, 6, 0.73], [23992, 29, 8, 0.43], [3722, 25, 4, 0.29], [4672, 1, 4, 1.56], [23962, 3, 4, 0.53], [1851, 1, 4, 0.26], [12418, 3, 7, 0.65], [8682, 3, 7, 0.52], [6224, 1, 6, 0.0], [10639, 2, 4, 0.56], [9780, 1, 4, 0.58], [22330, 3, 4, 1.4], [5128, 1, 4, 0.48], [21169, 10, 7, 0.6], [3945, 23, 10, 0.53], [13272, 29, 6, 0.54], [12594, 7, 4, 0.28], [11529, 10, 8, 0.3], [1407, 25, 4, 0.25], [4030, 25, 4, 0.55], [6872, 25, 4, 0.52], [30, 1, 4, 0.65], [21808, 1, 4, 0.0], [3984, 3, 10, 0.87], [1803, 2, 4, 1.59], [20918, 3, 4, 0.61], [10707, 1, 6, 0.92], [12706, 23, 18, 0.0], [22585, 3, 4, 0.43], [13273, 29, 6, 0.6], [586, 1, 4, 0.55], [19343, 2, 4, 0.38], [5910, 10, 15, 0.31], [291, 3, 6, 0.65], [2731, 3, 4, 0.93], [10594, 3, 4, 0.45], [11056, 3, 6, 1.97], [1895, 1, 4, 0.0], [10411, 1, 8, 0.54], [2188, 2, 8, 0.42], [19358, 23, 7, 0.43], [8684, 3, 6, 0.38], [2985, 3, 6, 0.58], [11426, 25, 6, 0.61], [13324, 3, 8, 0.33], [12791, 1, 7, 0.44], [10484, 3, 7, 0.0], [12476, 3, 6, 1.11], [10722, 2, 4, 0.3], [14041, 1, 4, 0.26], [13294, 3, 4, 0.58], [22871, 7, 4, 0.55], [4927, 12, 4, 0.47], [9350, 3, 6, 0.42], [12162, 2, 4, 0.39], [12249, 14, 4, 0.27], [2421, 29, 4, 0.39], [12150, 1, 4, 0.29], [11931, 1, 4, 1.15], [3986, 4, 4, 0.7], [1080, 1, 11, 2.27], [7524, 7, 13, 0.0], [11253, 7, 8, 0.0], [5343, 16, 4, 0.53], [9085, 25, 4, 0.72], [11625, 29, 6, 0.4], [392, 4, 4, 0.72], [9150, 23, 6, 0.37], [23961, 1, 4, 0.55], [10525, 3, 6, 0.64], [5925, 1, 6, 0.31], [5652, 2, 4, 0.33], [10994, 2, 4, 0.47], [13108, 3, 7, 2.22], [2946, 3, 4, 1.02], [19581, 1, 4, 0.0], [691, 3, 4, 0.49], [803, 3, 4, 0.37], [23544, 3, 6, 0.53], [32, 1, 4, 0.62], [1743, 1, 4, 0.63], [19878, 1, 4, 0.32], [8155, 25, 4, 0.64], [12494, 3, 4, 0.31], [19339, 2, 4, 0.34], [13038, 3, 6, 0.98], [10635, 2, 4, 0.56], [382, 1, 4, 1.0], [23545, 3, 6, 0.53], [21822, 2, 4, 0.36], [6399, 1, 4, 0.0], [12496, 1, 4, 0.51], [8157, 80, 4, 0.72], [9960, 1, 14, 0.29], [9149, 23, 6, 0.34], [23903, 3, 6, 0.52], [3988, 4, 4, 0.78], [4222, 4, 4, 0.88], [12489, 1, 4, 0.57], [12379, 1, 4, 1.15], [12993, 3, 10, 0.41], [12418, 1, 4, 0.63], [11212, 4, 4, 2.12], [806, 3, 4, 0.38], [6346, 7, 6, 0.0], [8944, 1, 4, 0.35], [2367, 3, 6, 0.61], [21168, 10, 6, 0.6], [3577, 25, 4, 0.53], [19883, 1, 4, 0.32], [23039, 10, 7, 2.09], [12474, 1, 4, 0.0], [12536, 2, 4, 0.62], [11915, 3, 19, 0.38], [8234, 1, 4, 0.7], [12165, 2, 4, 0.4], [7361, 3, 4, 0.4], [12533, 7, 6, 0.27], [2234, 1, 4, 0.46], [12262, 3, 7, 0.89], [21167, 10, 7, 0.6], [333, 25, 4, 0.6], [11735, 3, 4, 0.57], [7358, 3, 4, 0.39], [21187, 10, 6, 2.96], [9671, 3, 6, 0.59], [11289, 2, 4, 2.39], [1453, 2, 4, 0.45], [10670, 3, 4, 0.48], [3723, 25, 4, 1.04], [1805, 2, 4, 0.89], [13293, 3, 6, 0.58], [962, 10, 10, 0.36], [22591, 1, 4, 0.36], [13274, 29, 6, 0.61], [7565, 7, 6, 0.0], [20997, 7, 8, 0.0], [4178, 68, 4, 0.36], [11420, 3, 4, 0.51], [5729, 2, 4, 0.67], [62, 1, 7, 0.74], [3430, 16, 4, 0.61], [2495, 2, 4, 0.42], [19685, 1, 4, 0.0], [1515, 1, 4, 0.31], [5645, 3, 4, 1.48], [11226, 1, 4, 0.3], [5188, 1, 4, 0.43], [9494, 1, 6, 0.4], [1063, 7, 8, 0.43], [3576, 29, 4, 0.61], [9820, 3, 4, 1.43], [11182, 1, 13, 1.58], [12723, 1, 4, 0.33], [3976, 3, 13, 0.87], [9960, 3, 4, 0.29], [6395, 1, 4, 0.0], [9209, 29, 6, 0.67], [3080, 3, 4, 0.47], [406, 1, 4, 0.0], [23337, 3, 4, 0.76], [2835, 138, 4, 0.46], [11411, 29, 4, 0.05], [11155, 11, 11, 0.32], [11527, 10, 8, 0.3], [10815, 3, 8, 2.21], [5007, 1, 4, 0.57], [11848, 1, 4, 0.55], [12335, 2, 4, 0.39], [4329, 3, 6, 0.48], [3583, 3, 4, 0.46], [13109, 3, 7, 2.18], [9356, 1, 4, 0.31], [12725, 1, 4, 0.33], [20670, 1, 4, 0.6], [6798, 7, 7, 0.0], [22877, 7, 4, 0.57], [9138, 23, 7, 0.69], [180, 15, 4, 0.36], [385, 1, 4, 0.97], [12585, 3, 6, 0.59], [335, 1, 4, 0.38], [22588, 3, 4, 0.43], [22125, 2, 4, 0.31], [10462, 3, 6, 0.79], [12419, 1, 6, 0.48], [8058, 1, 4, 0.8], [1728, 1, 4, 0.58], [11634, 1, 4, 0.33], [2193, 1, 8, 0.26], [6967, 3, 6, 1.59], [7566, 3, 7, 0.0], [19964, 25, 4, 0.59], [22029, 7, 19, 1.04], [2411, 80, 6, 0.44], [3560, 3, 4, 0.42], [22694, 3, 4, 0.47], [10944, 1, 4, 0.0], [1648, 1, 4, 0.95], [11270, 1, 15, 0.72], [2411, 29, 6, 0.44], [6359, 10, 11, 0.35], [688, 3, 4, 0.44], [8089, 1, 13, 0.93], [21687, 3, 7, 1.35], [6792, 1, 4, 0.44], [10105, 3, 4, 0.85], [11262, 7, 9, 0.0], [11413, 29, 4, 0.05], [6776, 7, 7, 0.0], [12227, 2, 4, 0.66], [22126, 2, 4, 0.32], [12430, 3, 6, 0.65], [6728, 1, 4, 0.48], [21320, 7, 13, 1.0], [11889, 2, 6, 1.39], [964, 15, 4, 0.65], [8905, 7, 12, 0.0], [6803, 3, 6, 0.65], [10459, 3, 6, 0.79], [13256, 25, 4, 0.45], [9182, 1, 4, 0.0], [11057, 3, 7, 1.93], [14013, 3, 6, 0.59], [29, 1, 4, 0.65], [5097, 2, 4, 0.47], [13325, 3, 5, 0.5], [10124, 1, 7, 0.32], [3599, 25, 4, 1.5], [3024, 3, 4, 0.7], [21487, 3, 4, 0.55], [23231, 3, 6, 0.42], [5849, 1, 7, 0.26], [8189, 10, 6, 0.39], [19336, 2, 4, 0.32], [2194, 1, 7, 0.26], [8059, 1, 6, 0.81], [4326, 1, 4, 0.44], [9122, 15, 4, 0.34], [2481, 16, 4, 0.49], [12634, 2, 4, 0.0], [20921, 3, 4, 0.53], [8502, 3, 4, 0.26], [19758, 2, 4, 0.33], [2364, 3, 4, 0.62], [5924, 1, 4, 0.33], [19364, 23, 4, 0.41], [1432, 25, 4, 0.16], [23992, 25, 6, 0.43], [6957, 2, 4, 0.81], [5208, 1, 4, 0.26], [7629, 1, 4, 0.64], [22914, 3, 6, 0.58], [1301, 3, 4, 1.05], [1620, 1, 4, 0.41], [1059, 1, 4, 0.0], [13392, 23, 8, 0.41], [10460, 3, 7, 0.79], [12449, 2, 6, 0.37], [11510, 1, 4, 0.0], [20790, 1, 6, 0.41], [3549, 29, 4, 0.73], [6778, 7, 14, 0.0], [3979, 3, 11, 0.84], [13198, 29, 4, 0.62], [6268, 23, 11, 0.36], [13853, 3, 5, 0.55], [8927, 1, 4, 0.27], [20961, 1, 4, 0.62], [19687, 1, 4, 0.68], [13033, 1, 4, 0.0], [12128, 1, 4, 0.3], [4940, 1, 8, 0.41], [9835, 2, 6, 0.47], [791, 2, 4, 0.29], [1053, 729, 4, 0.26], [12586, 3, 6, 0.77], [21773, 2, 4, 0.38], [12497, 1, 4, 0.52], [3585, 3, 4, 0.44], [20034, 2, 4, 0.43], [22920, 1, 4, 0.63], [11687, 1, 4, 0.2], [2492, 1, 4, 0.54], [11185, 23, 4, 2.57], [22920, 3, 6, 0.65], [3528, 25, 6, 0.37], [2481, 15, 4, 0.49], [10596, 3, 4, 0.55], [12614, 1, 4, 0.4], [5813, 1, 4, 0.73], [6319, 7, 13, 0.0], [1054, 10, 8, 0.33], [2168, 3, 4, 0.85], [6569, 1, 4, 0.0], [590, 1, 4, 0.26], [3902, 14, 6, 0.0], [3549, 25, 6, 0.74], [10461, 3, 7, 0.79], [5658, 3, 4, 0.36], [9088, 25, 6, 0.43], [11408, 7, 10, 0.73], [21478, 7, 7, 0.67], [23031, 3, 4, 0.58], [2308, 25, 4, 0.74], [1059, 3, 6, 0.41], [13462, 1, 8, 1.33], [12309, 2, 4, 0.55], [12330, 2, 4, 0.35], [1512, 3, 6, 0.28], [5446, 23, 4, 0.0], [11902, 2, 4, 0.39], [8106, 1, 6, 0.55], [218</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 42, 1.29], [8648, 2, 20, 0.83], [362, 2, 17, 0.55], [2327, 2, 24, 0.76], [141, 2, 16, 0.54], [2778, 2, 23, 0.73], [589, 2, 15, 0.0], [326, 2, 17, 0.17], [8650, 2, 16, 0.83], [305, 2, 12, 0.55], [130, 1, 8, 0.31], [2328, 2, 17, 0.76], [9760, 29, 10, 0.0], [2049, 3, 18, 0.25], [8853, 2, 25, 1.29], [2775, 2, 19, 0.73], [1446, 2, 7, 0.0], [205, 2, 8, 0.12], [143, 2, 13, 0.13], [8649, 2, 16, 0.83], [140, 2, 12, 0.16], [6936, 2, 25, 1.29], [2776, 2, 19, 0.73], [361, 2, 11, 0.54], [593, 2, 16, 0.47], [9507, 3, 4, 0.21], [1429, 2, 6, 0.0], [159, 3, 12, 0.25], [19925, 2, 10, 0.99], [5493, 2, 11, 0.58], [3840, 1, 8, 0.34], [206, 2, 6, 0.12], [145, 2, 7, 0.3], [523, 2, 8, 0.54], [413, 1, 7, 0.57], [997, 2, 7, 0.13], [151, 1, 8, 0.36], [2054, 3, 7, 0.0], [5491, 2, 7, 0.56], [998, 2, 7, 0.12], [8915, 2, 9, 0.0], [417, 2, 8, 0.54], [201, 3, 7, 0.52], [144, 2, 7, 0.49], [412, 1, 6, 0.55], [2050, 3, 7, 0.0], [11681, 2, 22, 1.08], [2055, 3, 7, 0.0], [146, 2, 6, 0.47], [7004, 1, 7, 0.31], [1656, 2, 6, 0.15], [12224, 1, 7, 0.19], [2057, 3, 7, 0.0], [10574, 3, 11, 0.51], [990, 2, 7, 0.11], [7036, 1, 10, 0.95], [11039, 2, 11, 0.99], [615, 2, 11, 0.56], [1124, 2, 9, 0.5], [583, 2, 6, 0.13], [5165, 1, 7, 0.41], [434, 2, 8, 0.47], [6097, 80, 6, 0.94], [20258, 2, 6, 0.54], [142, 2, 7, 0.54], [345, 3, 7, 0.52], [62, 3, 13, 0.65], [12225, 1, 4, 0.19], [11234, 2, 11, 0.47], [9372, 1, 11, 0.12], [248, 1, 4, 0.09], [6097, 29, 7, 0.94], [616, 2, 10, 0.57], [7885, 4, 4, 0.1], [7084, 3, 4, 0.66], [1654, 2, 6, 0.63], [6952, 1, 11, 0.82], [76, 2, 4, 0.51], [61, 3, 5, 0.5], [2912, 1, 7, 0.36], [346, 3, 6, 0.52], [11089, 1, 16, 0.59], [2424, 80, 7, 0.89], [7005, 1, 4, 0.57], [3891, 1, 4, 0.63], [11811, 1, 7, 0.65], [8938, 2, 7, 0.0], [21793, 1, 20, 1.23], [6098, 80, 4, 0.74], [10993, 2, 10, 0.51], [5208, 3, 11, 0.26], [11737, 2, 6, 0.45], [2424, 29, 8, 0.89], [3670, 2, 11, 1.05], [995, 2, 4, 0.47], [5165, 2, 13, 0.41], [11769, 1, 6, 0.0], [3576, 25, 7, 0.55], [1126, 2, 11, 0.37], [3893, 1, 6, 0.64], [5151, 2, 7, 0.43], [346, 1, 7, 0.51], [11770, 1, 17, 0.43], [418, 2, 4, 0.55], [11808, 1, 7, 0.53], [3889, 1, 4, 0.59], [972, 3, 7, 0.43], [20252, 2, 4, 0.93], [411, 2, 4, 0.66], [12870, 1, 7, 0.96], [159, 1, 8, 0.27], [1492, 1, 8, 0.74], [11426, 25, 7, 0.54], [20927, 1, 4, 0.58], [11739, 2, 7, 0.45], [1886, 2, 8, 2.4], [2912, 2, 12, 0.37], [11952, 1, 12, 1.08], [8943, 3, 4, 0.56], [2423, 80, 7, 0.77], [8089, 1, 8, 0.74], [3, 2, 8, 0.75], [11953, 1, 12, 0.99], [3334, 5, 11, 1.05], [11491, 2, 4, 0.55], [12269, 2, 7, 0.52], [416, 1, 4, 0.57], [3575, 25, 7, 0.57], [105, 3, 4, 0.03], [4032, 29, 8, 0.67], [996, 2, 4, 0.31], [11164, 1, 7, 0.94], [3577, 25, 6, 0.47], [957, 2, 5, 0.47], [6098, 29, 6, 0.74], [6158, 2, 8, 0.67], [955, 2, 11, 0.71], [2331, 1, 6, 1.0], [9784, 1, 4, 0.54], [11504, 2, 6, 0.55], [13962, 1, 7, 0.44], [11772, 1, 17, 1.32], [1413, 15, 4, 0.4], [410, 1, 4, 0.42], [10, 2, 12, 0.36], [13967, 1, 4, 0.4], [14037, 3, 8, 0.32], [20256, 2, 6, 0.65], [1490, 1, 6, 0.59], [432, 3, 6, 0.46], [12271, 2, 7, 0.52], [5005, 3, 15, 0.36], [13244, 1, 13, 0.45], [12369, 3, 16, 1.35], [8120, 3, 7, 0.61], [10149, 3, 29, 0.66], [214, 3, 19, 0.37], [22316, 3, 7, 0.58], [5076, 1, 7, 1.05], [13034, 3, 8, 0.81], [8286, 2, 7, 0.18], [6494, 1, 8, 0.75], [1163, 3, 7, 0.41], [11490, 1, 4, 0.66], [13028, 3, 8, 0.84], [5209, 3, 10, 0.26], [114, 3, 4, 0.03], [2423, 29, 7, 0.77], [4033, 29, 16, 0.47], [1519, 3, 20, 0.36], [12764, 2, 10, 0.56], [1007, 2, 10, 0.5], [8939, 2, 4, 0.0], [11767, 1, 4, 0.0], [8283, 2, 7, 0.2], [624, 2, 6, 0.58], [75, 2, 6, 0.63], [21798, 1, 4, 0.45], [11671, 1, 8, 0.51], [414, 1, 4, 0.57], [9491, 21, 15, 0.43], [2160, 68, 4, 0.59], [440, 3, 4, 3.38], [5584, 3, 4, 1.34], [229, 1, 4, 0.88], [335, 3, 18, 0.44], [11150, 2, 10, 0.37], [289, 3, 4, 0.65], [12356, 3, 6, 1.18], [3576, 29, 4, 0.55], [5005, 1, 10, 0.38], [11425, 25, 4, 0.52], [1703, 2, 8, 0.84], [66, 16, 4, 0.33], [161, 3, 8, 0.69], [8945, 3, 6, 1.42], [11738, 2, 4, 0.46], [2805, 137, 10, 1.06], [11404, 2, 11, 0.0], [7886, 4, 4, 0.31], [950, 1, 7, 0.33], [11771, 1, 8, 0.0], [159, 16, 4, 0.27], [8274, 3, 6, 0.38], [6497, 1, 7, 0.74], [11160, 1, 7, 1.37], [9998, 80, 4, 0.95], [4232, 80, 7, 0.82], [10407, 10, 12, 2.04], [10517, 29, 10, 0.71], [1701, 2, 6, 2.43], [2497, 2, 6, 1.08], [11586, 1, 11, 0.81], [20555, 2, 4, 0.48], [12362, 3, 7, 1.22], [11813, 1, 4, 0.83], [1699, 3, 4, 0.5], [66, 15, 4, 0.33], [2422, 80, 6, 0.87], [415, 1, 4, 0.57], [12496, 3, 6, 0.42], [13964, 1, 6, 0.42], [12357, 3, 6, 1.29], [288, 3, 6, 0.65], [11180, 1, 4, 0.57], [13968, 1, 4, 0.41], [11674, 1, 4, 0.0], [66, 1, 7, 0.33], [22317, 3, 7, 0.53], [9910, 25, 5, 0.36], [8285, 2, 6, 0.24], [11814, 1, 4, 0.42], [12979, 25, 15, 0.59], [12358, 3, 6, 1.27], [3429, 15, 4, 0.39], [11158, 1, 11, 1.39], [14041, 3, 6, 0.33], [9065, 2, 6, 0.23], [336, 15, 4, 0.37], [8944, 3, 4, 0.37], [2438, 2, 10, 0.45], [12361, 3, 6, 1.3], [1667, 3, 4, 0.51], [8926, 1, 6, 0.74], [11581, 29, 10, 0.48], [12497, 3, 6, 0.42], [10408, 10, 10, 0.55], [12304, 1, 8, 1.3], [12270, 2, 4, 0.54], [8635, 3, 5, 0.38], [21686, 3, 8, 1.35], [11159, 1, 13, 1.33], [389, 4, 4, 0.72], [12360, 3, 6, 1.27], [2109, 3, 15, 0.44], [3478, 2, 7, 0.85], [11236, 2, 8, 2.09], [1661, 3, 4, 0.51], [11179, 1, 6, 0.57], [71, 15, 4, 0.39], [1801, 1, 4, 0.8], [10514, 3, 6, 0.3], [2528, 29, 4, 0.43], [956, 2, 4, 0.46], [22236, 1, 10, 0.43], [11689, 2, 6, 0.2], [9069, 1, 4, 0.64], [1309, 1, 4, 0.69], [12223, 1, 6, 0.48], [13264, 29, 5, 0.52], [11687, 2, 6, 0.2], [6224, 1, 175, 0.0], [9690, 1, 4, 0.83], [1523, 1, 4, 0.93], [2421, 80, 6, 0.32], [12338, 29, 4, 0.41], [11683, 2, 15, 1.62], [7887, 4, 4, 0.38], [11812, 1, 4, 0.39], [1700, 2, 8, 0.87], [1243, 2, 7, 0.66], [12355, 3, 6, 1.22], [10609, 1, 20, 1.04], [3442, 29, 6, 0.66], [21697, 3, 4, 0.57], [584, 2, 4, 0.59], [10720, 80, 7, 0.4], [3337, 1, 4, 0.66], [11585, 29, 5, 0.73], [4253, 1, 4, 0.66], [74, 1, 4, 1.58], [147, 1, 4, 0.75], [126, 2, 4, 0.53], [10411, 10, 10, 0.57], [13033, 3, 7, 0.81], [11954, 1, 6, 0.25], [12964, 3, 4, 0.0], [10406, 10, 12, 0.66], [6496, 1, 6, 0.81], [1339, 3, 16, 0.37], [11690, 2, 6, 0.22], [972, 1, 4, 0.43], [11150, 1, 4, 0.38], [13251, 29, 6, 0.36], [947, 15, 4, 0.52], [7567, 3, 7, 1.47], [823, 1, 4, 0.81], [439, 1, 4, 0.7], [6872, 25, 4, 0.44], [9126, 1, 8, 0.61], [9910, 29, 4, 0.36], [3577, 29, 4, 0.47], [4940, 1, 8, 0.45], [9186, 29, 4, 0.4], [3575, 29, 4, 0.57], [9507, 1, 7, 0.21], [12373, 1, 10, 0.79], [12363, 3, 6, 1.28], [2109, 1, 7, 0.44], [10410, 10, 11, 2.04], [152, 21, 4, 0.41], [13023, 3, 9, 0.69], [9049, 2, 6, 0.59], [13243, 1, 4, 0.44], [8659, 1, 6, 0.81], [21687, 3, 7, 1.35], [13498, 3, 6, 0.97], [590, 15, 4, 0.38], [4372, 10, 14, 0.65], [4327, 1, 4, 0.69], [11726, 29, 7, 0.4], [11489, 1, 4, 0.66], [9122, 15, 6, 0.44], [21806, 1, 4, 0.0], [9288, 29, 4, 0.8], [307, 2, 4, 0.56], [566, 2, 7, 0.52], [11426, 29, 4, 0.55], [11719, 3, 10, 2.22], [10815, 3, 8, 2.21], [11467, 1, 4, 0.82], [13108, 3, 8, 2.22], [3896, 25, 4, 0.65], [10409, 10, 11, 0.64], [5585, 3, 4, 1.3], [5007, 3, 8, 0.45], [12647, 1, 7, 0.81], [19931, 1, 8, 0.41], [2104, 3, 13, 0.36], [12059, 3, 10, 0.62], [1274, 1, 4, 0.8], [13247, 29, 6, 0.0], [11942, 29, 6, 0.8], [21060, 1, 6, 0.68], [6561, 1, 31, 0.0], [13110, 3, 6, 1.35], [6540, 25, 4, 0.71], [23238, 25, 4, 0.37], [3892, 1, 4, 0.55], [12368, 3, 6, 1.32], [2878, 1, 4, 1.12], [435, 2, 4, 0.46], [2422, 29, 4, 0.87], [4586, 10, 23, 0.27], [110, 4, 4, 0.87], [20556, 2, 4, 0.54], [973, 3, 6, 0.62], [12010, 3, 4, 1.18], [8898, 3, 7, 1.4], [5940, 3, 4, 0.32], [19932, 1, 7, 0.45], [9081, 3, 14, 0.66], [399, 24, 4, 0.49], [10398, 2, 5, 0.56], [19971, 3, 6, 0.57], [3495, 3, 21, 0.55], [4030, 25, 4, 0.47], [13246, 29, 4, 1.13], [11611, 2, 4, 0.55], [11235, 2, 6, 0.45], [13036, 3, 8, 0.97], [8234, 1, 4, 0.7], [1059, 3, 6, 1.05], [21809, 1, 4, 0.0], [1406, 25, 4, 0.47], [13244, 2, 10, 0.43], [6569, 7, 41, 0.0], [6805, 1, 6, 0.56], [10897, 1, 16, 0.86], [9971, 2, 4, 0.74], [1432, 25, 5, 0.13], [11087, 2, 6, 0.51], [2100, 25, 4, 0.51], [11625, 29, 4, 0.4], [9124, 1, 4, 0.61], [991, 2, 6, 0.32], [490, 1, 8, 0.43], [7702, 2, 8, 0.68], [9998, 29, 7, 0.95], [7324, 1, 4, 0.4], [12526, 2, 6, 0.39], [2049, 1, 7, 0.25], [3894, 1, 4, 0.7], [8677, 3, 7, 1.03], [9289, 29, 7, 0.78], [21700, 3, 4, 1.06], [2368, 3, 7, 0.28], [10719, 80, 7, 0.47], [202, 2, 4, 0.41], [149, 2, 4, 0.75], [9786, 1, 4, 0.54], [11084, 2, 6, 0.51], [524, 1, 4, 0.55], [21699, 3, 8, 0.57], [13893, 2, 4, 0.54], [13243, 2, 10, 0.43], [1895, 3, 6, 0.6], [8284, 2, 6, 0.26], [10407, 1, 4, 0.0], [6394, 7, 37, 0.0], [378, 2, 8, 0.83], [1413, 16, 4, 0.4], [8600, 1, 4, 0.59], [3016, 68, 4, 0.97], [10406, 1, 4, 0.61], [12979, 1, 4, 0.57], [3278, 29, 4, 0.53], [11887, 2, 6, 0.32], [11885, 2, 6, 0.32], [11960, 3, 6, 0.2], [9785, 1, 4, 0.54], [12229, 2, 4, 0.82], [10721, 80, 8, 0.32], [21059, 1, 7, 0.69], [23238, 29, 6, 0.37], [13258, 29, 19, 0.72], [11710, 3, 7, 0.36], [21703, 3, 4, 1.04], [2539, 29, 7, 0.44], [9967, 2, 4, 0.74], [3610, 24, 4, 1.09], [10093, 3, 17, 0.88], [11427, 2, 6, 0.81], [11603, 2, 4, 1.03], [13259, 29, 17, 0.0], [12764, 1, 4, 0.54], [18964, 1, 4, 1.59], [2695, 3, 7, 0.45], [5453, 1, 4, 0.58], [12873, 1, 7, 0.58], [9854, 1, 4, 0.87], [9209, 29, 10, 0.61], [1548, 1, 6, 0.59], [11643, 1, 4, 0.55], [12241, 3, 6, 0.28], [8896, 1, 4, 1.03], [1515, 1, 4, 0.31], [9239, 29, 10, 0.42], [11967, 1, 4, 0.3], [2369, 3, 7, 0.45], [8599, 1, 4, 0.68], [21691, 3, 7, 1.15], [9122, 1, 4, 0.43], [12646, 1, 6, 0.82], [9082, 3, 32, 0.95], [1744, 1, 4, 0.64], [21701, 3, 4, 1.04], [470, 1, 4, 0.16], [11085, 2, 6, 0.51], [11183, 1, 4, 1.11], [11559, 29, 4, 0.51], [5939, 3, 4, 0.35], [406, 3, 10, 1.09], [3599, 25, 4, 1.47], [21783, 2, 4, 0.31], [12234, 3, 5, 0.82], [21694, 3, 7, 1.15], [22318, 3, 6, 0.57], [1301, 3, 4, 0.74], [1277, 1, 7, 0.41], [9494, 1, 6, 0.38], [1407, 25, 4, 0.22], [9125, 1, 7, 0.61], [11425, 29, 4, 0.52], [8355, 1, 4, 0.34], [5658, 68, 4, 0.41], [8155, 25, 4, 0.6], [12295, 4, 4, 0.56], [13259, 25, 4, 0.83], [20969, 3, 9, 0.92], [9, 1, 4, 0.29], [9965, 2, 4, 0.74], [11930, 1, 4, 1.15], [21713, 3, 15, 0.35], [345, 1, 8, 0.0], [13928, 1, 6, 0.77], [21810, 1, 4, 0.0], [7558, 3, 4, 0.42], [9841, 25, 12, 0.41], [4326, 1, 4, 0.7], [11583, 29, 4, 0.39], [10936, 2, 4, 0.0], [6864, 1, 6, 0.53], [3456, 3, 4, 0.42], [3900, 3, 4, 0.38], [7707, 2, 7, 0.68], [11090, 1, 4, 0.29], [19982, 2, 4, 0.29], [12367, 3, 6, 1.3], [1668, 1, 4, 0.59], [8106, 10, 4, 0.55], [19924, 2, 6, 0.25], [12871, 1, 5, 0.83], [21781, 2, 4, 0.34], [2196, 25, 4, 0.24], [12449, 2, 7, 0.43], [9085, 25, 8, 0.64], [9840, 25, 12, 0.41], [9964, 2, 4, 0.74], [10414, 10, 7, 0.39], [8897, 3, 6, 1.39], [2438, 1, 6, 0.43], [922, 1, 4, 0.28], [4043, 29, 6, 0.43], [7708, 2, 7, 0.68], [13266, 29, 4, 0.59], [10409, 1, 4, 0.59], [4030, 29, 4, 0.47], [3673, 2, 6, 1.06], [21712, 3, 19, 0.5], [19964, 25, 4, 0.51], [958, 2, 4, 0.49], [6540, 29, 4, 0.71], [12058, 3, 6, 0.62], [3664, 5, 10, 0.85], [6872, 29, 4, 0.44], [8754, 2, 10, 0.41], [9113, 15, 6, 0.36], [8943, 1, 4, 0.57], [10939, 2, 4, 0.0], [13272, 29, 10, 0.52], [21689, 3, 6, 1.15], [10413, 10, 8, 1.2], [10716, 3, 6, 0.34], [3599, 29, 4, 0.0], [2322, 2, 4, 0.67], [10410, 1, 4, 0.0], [11717, 3, 4, 1.57], [20259, 2, 4, 0.52], [4354, 1, 4, 0.83], [11413, 29, 4, 0.03], [10822, 7, 10, 1.16], [13025, 3, 6, 0.97], [11450, 2, 6, 0.75], [11116, 1, 4, 0.29], [9204, 3, 4, 0.94], [975, 3, 6, 0.38], [13323, 3, 6, 0.42], [1300, 3, 8, 0.28], [11721, 3, 7, 2.21], [11844, 2, 5, 0.42], [3028, 3, 4, 0.3], [10408, 1, 4, 0.52], [9787, 1, 4, 0.55], [11618, 1, 4, 0.56], [4372, 1, 4, 0.67], [19983, 2, 4, 0.39], [436, 2, 4, 0.41], [11677, 1, 4, 0.62], [220, 4, 4, 1.1], [19972, 3, 6, 0.58], [3934, 5, 7, 0.75], [13198, 29, 4, 0.62], [13928, 2, 6, 0.77], [308, 1, 4, 0.74], [10717, 3, 7, 0.36], [12296, 4, 4, 0.43], [21316, 3, 4, 0.34], [247, 1, 4, 0.68], [1339, 1, 4, 0.35], [21807, 1, 4, 0.0], [9209, 25, 6, 0.61], [4232, 29, 6, 0.82], [11212, 4, 4, 2.22], [7704, 2, 4, 0.68], [23239, 25, 4, 0.32], [21704, 3, 14, 0.37], [21317, 3, 4, 0.34], [9827, 3, 4, 0.4], [10412, 10, 7, 0.39], [10537, 3, 6, 0.35], [5976, 1, 6, 0.37], [8283, 1, 4, 0.0], [7457, 3, 7, 0.42], [2421, 29, 4, 0.32], [11485, 24, 4, 1.27], [8054, 1, 4, 0.38], [70, 16, 4, 0.31], [21463, 7, 6, 0.58], [201, 1, 4, 0.0], [3723, 25, 4, 0.88], [13274, 29, 4, 0.61], [21808, 1, 4, 0.0], [6575, 3, 4, 1.03], [10536, 3, 6, 0.0], [12653, 1, 7, 0.4], [22570, 1, 6, 0.7], [11633, 1, 4, 0.34], [13024, 3, 6, 0.97], [11435, 2, 4, 0.65], [8756, 2, 7, 0.53], [9239, 25, 4, 0.42], [471, 1, 4, 0.34], [6218, 1, 12, 0.0], [5188, 1, 4, 0.69], [9149, 23, 6, 0.34], [20255, 2, 4, 0.75], [11794, 2, 5, 1.23], [10411, 1, 4, 0.54], [10150, 3, 10, 0.29], [11868, 3, 4, 0.5], [2105, 3, 11, 0.33], [45, 2, 6, 1.38], [5153, 2, 4, 0.0], [2419, 80, 6, 0.46], [1648, 1, 6, 0.93], [21474, 7, 4, 0.6], [9691, 1, 4, 0.83], [71, 16, 4, 0.38], [9113, 1, 6, 0.35], [1575, 1, 4, 0.67], [12517, 2, 5, 0.76], [4043, 25, 6, 0.43], [10176, 29, 4, 0.71], [11644, 1, 4, 0.55], [10455, 29, 4, 0.02], [1706, 25, 4, 0.75], [6209, 1, 31, 0.0], [2108, 1, 5, 0.36], [4178, 68, 4, 0.41], [14017, 3, 4, 0.3], [109, 4, 4, 0.66], [12463, 1, 7, 0.43], [560, 1, 4, 1.03], [13105, 3, 6, 1.91], [9778, 1, 4, 0.57], [21789, 2, 4, 0.35], [1853, 1, 4, 0.49], [1743, 1, 4, 0.63], [23380, 25, 4, 0.36], [23237, 25, 4, 0.36], [8753, 2, 7, 0.53], [1059, 1, 7, 0.0], [21476, 7, 4, 0.6], [11559, 80, 4, 0.51], [3609, 24, 6, 0.5], [12448, 2, 6, 0.45], [11718, 3, 4, 1.56], [19582, 3, 4, 0.26], [4076, 3, 4, 1.03], [11402, 1, 6, 0.65], [13249, 29, 7, 0.79], [11678, 1, 6, 1.16], [3143, 3, 4, 0.88], [10461, 3, 6, 0.79], [19687, 1, 4, 0.68], [88, 10, 20, 0.65], [12365, 3, 7, 1.03], [1431, 3, 10, 0.48], [8106, 1, 8, 0.55], [21692, 3, 6, 1.51], [10721, 29, 7, 0.33], [6222, 1, 20, 0.0], [11846, 3, 6, 0.5], [332, 2, 4, 0.41], [10254, 1, 4, 0.92], [2492, 1, 4, 0.54], [21683, 3, 4, 0.26], [10459, 3, 6, 0.79], [3230, 1, 4, 0.47], [10940, 2, 4, 0.0], [2108, 3, 8, 0.35], [10941, 2, 4, 0.0], [12463, 15, 6, 0.42], [8672, 2, 11, 0.9], [1706, 2, 4, 0.75], [13258, 25, 4, 0.72], [8286, 1, 4, 0.0], [6728, 1, 4, 0.48], [1024, 1, 4, 0.36], [10825, 21, 13, 0.62], [9085, 29, 6, 0.63], [19047, 3, 4, 0.83], [12538, 3, 12, 0.29], [9342, 2, 7, 1.39], [11886, 2, 5, 0.4], [10531, 14, 11, 0.5], [13104, 3, 6, 1.92], [7705, 2, 6, 0.68], [10994, 2, 7, 0.52], [11412, 29, 4, 0.03], [13257, 29, 9, 0.7], [10460, 3, 6, 0.79], [11962, 1, 4, 0.58], [11768, 1, 4, 0.0], [1005, 2, 4, 0.33], [5128, 1, 4, 0.48], [9613, 1, 4, 0.26], [6799, 1, 17, 0.0], [4175, 3, 11, 0.87], [2859, 15, 4, 0.61], [19883, 1, 4, 0.31], [9207, 29, 5, 0.4], [11081, 3, 4, 0.33], [19965, 25, 4, 0.36], [5343, 15, 4, 0.52], [2738, 3, 4, 0.62], [11867, 3, 4, 0.64], [12637, 1, 6, 0.48], [344, 25, 4, 0.56], [5666, 2, 5, 0.74], [13966, 1, 4, 0.39], [8923, 25, 7, 0.34], [7084, 1, 5, 0.0], [5152, 2, 4, 0.82], [7703, 2, 4, 0.68], [2879, 1, 4, 0.38], [2103, 15, 4, 0.4], [12294, 4, 4, 1.68], [21091, 7, 4, 0.36], [6396, 7, 9, 0.0], [12369, 1, 6, 0.0], [22871, 7, 4, 0.55], [2991, 3, 6, 0.84], [9997, 80, 4, 0.76], [12040, 68, 4, 0.29], [3722, 25, 4, 0.39], [13267, 29, 6, 0.41], [4001, 3, 13, 0.84], [12912, 3, 6, 0.35], [22573, 2, 7, 0.61], [394, 10, 14, 0.3], [13260, 29, 4, 0.62], [2100, 2, 4, 0.51], [12924, 1, 4, 0.3], [10720, 29, 6, 0.39], [2287, 25, 4, 0.73], [11562, 29, 6, 0.6], [512, 24, 4, 1.93], [9996, 80, 4, 0.92], [3021, 68, 4, 0.41], [10937, 2, 4, 0.0], [3896, 29, 4, 0.65], [5341, 15, 4, 0.55], [6560, 3, 25, 0.0], [9138, 2, 4, 0.66], [9945, 3, 6, 0.33], [9380, 1, 6, 1.07], [13106, 3, 6, 1.91], [1683, 1, 4, 0.49], [21693, 3, 7, 2.22], [19685, 1, 8, 0.0], [161, 1, 7, 0.69], [8688, 14, 8, 0.6], [10581, 3, 6, 1.19], [974, 3, 6, 0.76], [23339, 3, 4, 0.37], [354, 2, 4, 0.42], [3429, 16, 4, 0.39], [11895, 1, 12, 0.28], [11961, 1, 8, 0.46], [4329, 3, 6, 0.33], [3059, 3, 4, 1.03], [9208, 29, 6, 0.65], [21690, 3, 6, 1.04], [9374, 5, 6, 1.06], [13488, 1, 6, 0.57], [3088, 1, 4, 0.3], [107, 7, 7, 0.74], [3104, 1, 6, 0.88], [11306, 2, 4, 1.68], [22407, 1, 4, 0.36], [5851, 1, 4, 0.33], [10181, 26, 13, 0.0], [13491, 7, 4, 0.91], [10507, 2, 4, 0.44], [12654, 1, 4, 0.9], [11213, 4, 4, 2.22], [407, 3, 6, 1.09], [11960, 1, 8, 0.21], [12516, 2, 5, 0.76], [6803, 3, 6, 0.42], [21481, 7, 5, 0.96], [3338, 1, 4, 0.45], [7457, 1, 5, 0.43], [9138, 23, 8, 0.69], [1185, 3, 4, 0.94], [8636, 3, 7, 1.27], [2188, 2, 11, 0.42], [12057, 2, 4, 0.76], [10083, 23, 12, 0.67], [5343, 16, 4, 0.53], [22571, 1, 4, 0.0], [11619, 1, 4, 0.56], [9783, 1, 4, 0.52], [10616, 1, 4, 0.47], [12613, 1, 4, 0.56], [409, 1, 4, 0.34], [9373, 5, 6, 0.89], [21706, 3, 17, 0.32], [3389, 1, 6, 0.97], [1095, 2, 6, 0.79], [79, 1, 4, 0.65], [22874, 3, 4, 0.56], [1120, 3, 12, 0.36], [20956, 7, 8, 0.62], [9150, 23, 7, 0.37], [9208, 25, 6, 0.65], [11896, 2, 4, 0.35], [19966, 25, 4, 0.36], [2308, 25, 4, 0.76], [2436, 4, 6, 1.05], [1432, 2, 4, 0.0], [20649, 1, 6, 0.69], [23276, 3, 4, 0.79], [1299, 3, 9, 0.48], [7706, 2, 4, 0.68], [8356, 1, 6, 0.35], [12980, 25, 10, 0.42], [19968, 25, 4, 0.25], [12875, 1, 9, 0.49], [1414, 15, 4, 0.4], [1139, 3, 6, 0.3], [11410, 29, 4, 0.4], [13253, 29, 5, 0.41], [11856, 1, 4, 0.58], [334, 25, 4, 0.62], [8188, 10, 10, 0.4], [6560, 1, 22, 0.0], [22708, 1, 4, 0.96], [13107, 3, 7, 1.93], [10462, 3, 6, 0.79], [2196, 2, 4, 0.0], [21319, 7, 15, 0.62], [2935, 1, 7, 0.41], [8051, 2, 4, 0.43], [2188, 1, 8, 0.4], [590, 16, 4, 0.38], [8945, 1, 4, 0.0], [12054, 2, 6, 0.76], [4328, 1, 4, 0.66], [944, 15, 4, 0.35], [3047, 3, 5, 1.1], [1413, 1, 4, 0.4], [9788, 1, 4, 0.54], [5340, 23, 7, 0.4], [12366, 3, 6, 1.5], [8033, 2, 4, 0.36], [3462, 2, 4, 0.61], [405, 3, 6, 1.09], [4966, 2, 4, 0.27], [2419, 29, 6, 0.46], [11054, 3, 7, 1.87], [1705, 25, 4, 0.43], [21705, 3, 9, 0.73], [22125, 2, 4, 0.31], [8023, 1, 4, 0.53], [3910, 7, 11, 0.67], [8681, 3, 4, 0.36], [21468, 7, 6, 0.56], [11178, 1, 7, 0.54], [4222, 4, 4, 0.5], [22321, 1, 4, 0.33], [10816, 3, 6, 1.79], [13252, 29, 8, 0.44], [11899, 2, 4, 0.49], [432, 1, 4, 0.47], [2362, 25, 4, 0.37], [1409, 15, 4, 0.35], [2217, 1, 4, 0.96], [3258, 7, 8, 0.68], [22408, 1, 4, 0.41], [1406, 2, 4, 0.47], [11641, 1, 4, 0.55], [8683, 3, 4, 0.38], [11936, 2, 4, 0.0], [12536, 2, 4, 0.35], [9148, 23, 6, 0.34], [8557, 3, 4, 0.11], [4651, 2, 6, 0.43], [11527, 10, 7, 1.16], [2099, 2, 4, 0.87], [9182, 1, 4, 0.78], [9253, 3, 4, 0.64], [107, 2, 6, 0.73], [10396, 3, 4, 0.39], [6802, 3, 4, 0.42], [2916, 1, 4, 0.57], [12993, 3, 13, 0.59], [9358, 1, 6, 0.71], [8157, 80, 6, 0.63], [12930, 2, 4, 0.32], [19686, 1, 4, 0.33], [11722, 3, 4, 1.98], [8944, 1, 4, 0.37], [2323, 2, 4, 0.67], [10124, 1, 6, 0.33], [8637, 3, 7, 1.38], [8167, 7, 6, 0.8], [14018, 3, 4, 0.28], [10719, 29, 4, 0.48], [2335, 3, 4, 0.49], [9841, 1, 4, 0.43], [8510, 7, 11, 0.0], [11562, 80, 4, 0.6], [5812, 3, 6, 0.4], [1407, 2, 4, 0.0], [12791, 2, 7, 0.42], [1742, 1, 4, 0.66], [23235, 25, 4, 0.52], [19882, 1, 4, 0.31], [1514, 1, 4, 0.29], [2999, 1, 4, 0.93], [11156, 11, 9, 0.32], [3909, 7, 11, 0.66], [8285, 1, 4, 0.0], [11889, 2, 6, 1.39], [12473, 15, 4, 0.34], [11327, 3, 7, 0.78], [2362, 29, 4, 0.0], [23489, 3, 6, 0.76], [11092, 1, 4, 0.29], [19878, 1, 4, 0.31], [12992, 3, 13, 0.58], [21088, 7, 6, 0.28], [6561, 3, 7, 0.0], [3049, 3, 4, 1.0], [19965, 29, 5, 0.36], [10640, 3, 7, 0.32], [9087, 25, 4, 0.8], [12662, 1, 6, 0.0], [12614, 1, 4, 0.54], [10174, 1, 4, 0.55], [3386, 1, 4, 1.03], [408, 3, 6, 1.09], [22877, 7, 4, 0.57], [10278, 3, 6, 0.87], [11901, 2, 4, 0.47], [8923, 29, 6, 0.33], [5543, 1, 4, 0.33], [11152, 11, 9, 0.37], [1880, 4, 4, 1.92], [5342, 23, 6, 0.38], [9207, 25, 4, 0.4], [12923, 1, 6, 0.3], [5452, 1, 4, 0.0], [6570, 7, 8, 0.0], [22706, 1, 4, 0.95], [3391, 1, 4, 0.87], [20650, 1, 4, 0.72], [440, 1, 4, 0.0], [12239, 3, 4, 0.26], [12379, 1, 4, 1.15], [9149, 2, 4, 0.34], [13041, 3, 6, 0.33], [11093, 1, 4, 0.29], [11080, 3, 4, 1.53], [5007, 1, 4, 0.46], [23493, 3, 4, 0.26], [11855, 1, 4, 0.58], [1705, 2, 4, 0.43], [382, 1, 6, 1.0], [9375, 1, 4, 0.69], [23494, 3, 4, 0.26], [11931, 1, 4, 1.15], [12030, 2, 4, 0.93], [12586, 3, 6, 0.59], [14, 1, 4, 0.52], [3976, 3, 8, 0.87], [11968, 1, 4, 0.26], [2495, 2, 4, 0.44], [10272, 3, 6, 0.58], [22879, 3, 4, 0.57], [1691, 1, 4, 0.72], [12235, 3, 4, 0.82], [1620, 1, 4, 0.41], [563, 2, 4, 0.44], [11328, 3, 6, 0.78], [12508, 1, 4, 0.43], [10273, 3, 6, 0.58], [12648, 1, 6, 0.76], [21459, 7, 11, 1.0], [9154, 23, 6, 0.36], [23039, 10, 10, 2.05], [21710, 3, 33, 0.55], [3430, 15, 4, 0.32], [70, 1, 4, 0.31], [11711, 3, 4, 0.94], [12262, 3, 6, 0.21], [8651, 2, 6, 0.8], [3598, 15, 4, 0.38], [12031, 2, 4, 0.93], [13273, 29, 4, 0.6], [11289, 2, 4, 2.3], [11528, 10, 7, 1.16], [3987, 3, 6, 0.9], [8682, 3, 4, 0.36], [8191, 10, 8, 0.38], [448, 1, 4, 0.45], [9355, 1, 4, 0.55], [5343, 1, 6, 0.53], [20965, 3, 6, 1.15], [216, 4, 4, 0.59], [10147, 1, 5, 0.85], [23234, 25, 6, 0.42], [23275, 2, 6, 0.61], [20188, 3, 4, 0.81], [10048, 1, 4, 0.34], [12053, 2, 8, 0.76], [11858, 1, 4, 0.58], [19581, 3, 4, 0.26], [12426, 3, 6, 0.51], [215, 4, 4, 1.0], [5946, 1, 4, 0.69], [19964, 29, 4, 0.51], [3658, 1, 4, 0.62], [5540, 1, 4, 0.33], [9382, 1, 6, 0.36], [3390, 1, 4, 0.97], [10114, 1, 33, 0.0], [20316, 3, 4, 1.23], [8280, 2, 6, 1.39], [105, 1, 4, 0.0], [6023, 1, 4, 0.0], [4967, 23, 11, 0.36], [23040, 10, 8, 1.76], [6224, 7, 11, 0.0], [12656, 1, 4, 0.9], [506, 1, 4, 0.75], [8085, 1, 4, 0.34], [12238, 3, 6, 1.31], [21686, 1, 6, 0.0], [6525, 7, 13, 0.0], [3341, 3, 4, 0.92], [12237, 3, 6, 1.31], [12980, 1, 4, 0.43], [12029, 2, 4, 0.93], [18, 1, 4, 0.43], [1602, 68, 4, 1.19], [21752, 2, 4, 0.0], [7629, 1, 4, 0.64], [1511, 3, 7, 0.32], [22038, 7, 7, 0.62], [22037, 7, 8, 0.62], [21745, 2, 4, 0.0], [11793, 2, 6, 0.87], [10114, 3, 11, 0.0], [8050, 2, 4, 0.38], [2103, 16, 4, 0.4], [9381, 1, 12, 0.37], [515, 24, 4, 0.87], [5408, 2, 4, 0.41], [11735, 3, 4, 0.57], [11635, 1, 4, 0.29], [6220, 1, 15, 0.0], [10149, 1, 5, 0.64], [13268, 29, 4, 0.68], [5542, 1, 4, 0.31], [19583, 3, 6, 0.26], [24130, 1, 6, 0.34], [23545, 3, 6, 0.43], [9781, 1, 4, 0.58], [11304, 2, 4, 2.3], [392, 4, 4, 0.72], [12917, 3, 4, 0.32], [9153, 23, 6, 0.39], [21461, 7, 10, 1.0], [3392, 1, 4, 0.87], [13037, 3, 4, 0.97], [12630, 10, 6, 0.38], [14040, 3, 4, 0.3], [10529, 29, 8, 0.82], [3913, 1, 15, 0.94], [19969, 25, 4, 0.56], [10467, 29, 6, 0.85], [11057, 3, 6, 1.83], [12587, 3, 4, 0.59], [21480, 7, 6, 1.01], [20939, 3, 4, 0.76], [10580, 3, 6, 1.72], [11288, 2, 4, 2.3], [19880, 1, 4, 0.31], [13324, 3, 6, 0.33], [5490, 2, 4, 0.52], [6395, 7, 19, 0.0], [20964, 3, 6, 1.06], [8904, 7, 13, 0.0], [380, 2, 4, 0.0], [12501, 1, 4, 0.0], [13295, 3, 4, 0.58], [2728, 3, 4, 0.66], [9840, 1, 4, 0.43], [12504, 1, 4, 0.0], [8684, 3, 4, 0.38], [3016, 3, 6, 0.97], [4586, 1, 4, 0.33], [9777, 1, 4, 0.52], [5341, 16, 4, 0.55], [20190, 3, 4, 0.85], [6565, 1, 93, 0.0], [6342, 3, 6, 0.0], [5577, 3, 4, 1.32], [3450, 1, 4, 0.68], [21487, 3, 4, 0.49], [2934, 1, 4, 0.39], [94, 4, 4, 0.82], [12674, 1, 4, 0.68], [23028, 3, 4, 0.61], [13257, 25, 4, 0.7], [13035, 3, 6, 0.59], [9150, 2, 4, 0.37], [9485, 2, 4, 0.32], [3979, 3, 4, 0.84], [7182, 1, 4, 0.38], [5411, 2, 4, 0.4], [11325, 3, 6, 0.78], [9997, 29, 6, 0.76], [1601, 68, 4, 1.22], [9153, 2, 4, 0.38], [12418, 3, 6, 0.65], [951, 4, 4, 0.49], [11902, 2, 7, 0.48], [11687, 1, 4, 0.2], [10528, 3, 11, 0.32], [5368, 3, 4, 0.78], [333, 25, 4, 0.6], [2336, 3, 11, 0.57], [23032, 3, 6, 0.59], [12236, 3, 6, 0.29], [1120, 1, 7, 0.37], [5110, 1, 6, 0.69], [11185, 23, 4, 0.41], [10048, 15, 6, 0.35], [12594, 7, 4, 0.28], [11558, 80, 4, 0.61], [12218, 3, 10, 0.53], [13300, 3, 6, 0.92], [8156, 25, 4, 0.6], [22323, 1, 6, 0.32], [9083, 3, 4, 0.62], [10384, 3, 6, 0.29], [11642, 1, 4, 0.54], [11900, 2, 4, 0.62], [5848, 1, 4, 0.37], [13485, 1, 4, 0.57], [11056, 3, 6, 1.87], [2104, 1, 4, 0.36], [6209, 7, 6, 0.0], [11021, 3, 7, 0.79], [20314, 3, 4, 1.23], [2193, 1, 23, 0.28], [214, 1, 4, 0.39], [9828, 3, 4, 0.4], [11290, 2, 4, 2.3], [12588, 3, 4, 0.59], [62, 1, 4, 0.65], [13113, 1, 6, 0.46], [12535, 2, 4, 0.34], [23237, 29, 4, 0.36], [2854, 21, 9, 0.46], [10574, 1, 6, 0.52], [23490, 3, 4, 0.76], [10483, 1, 28, 0.0], [12032, 2, 4, 0.93], [9608, 1, 4, 0.26], [4063, 3, 10, 0.37], [3421, 3, 20, 0.3], [385, 1, 4, 1.09], [3986, 4, 4, 0.7], [12260, 3, 4, 0.86], [4927, 12, 5, 0.44], [7724, 3, 4, 0.43], [13293, 3, 5, 0.58], [23492, 3, 4, 0.26], [9378, 1, 4, 0.77], [13965, 1, 7, 0.39], [21482, 7, 6, 0.95], [11048, 1, 4, 0.25], [12791, 1, 7, 0.44], [9487, 2, 4, 0.32], [148, 1, 4, 0.76], [5658, 3, 4, 0.41], [8754, 1, 4, 0.4], [20315, 3, 4, 1.23], [22126, 2, 4, 0.32], [13489, 1, 8, 0.57], [9154, 2, 4, 0.34], [22866, 7, 4, 0.59], [6628, 3, 4, 0.37], [2217, 15, 4, 0.97], [5109, 1, 4, 0.69], [11403, 1, 13, 0.58], [23994, 29, 5, 0.43], [12240, 14, 4, 0.29], [3258, 1, 6, 0.68], [9486, 2, 4, 0.32], [13404, 7, 9, 0.0], [8157, 29, 4, 0.63], [8120, 1, 4, 0.61], [6259, 7, 24, 0.0], [13256, 29, 4, 0.4], [12576, 3, 4, 0.63], [12340, 2, 4, 0.64], [6630, 3, 4, 0.52], [2194, 1, 8, 0.28], [11022, 3, 6, 0.8], [23491, 3, 4, 0.26], [5978, 1, 4, 0.66], [9623, 3, 4, 0.45], [12706, 23, 102, 0.0], [9087, 29, 5, 0.8], [2326, 2, 4, 0.0], [11582, 29, 4, 0.46], [6218, 7, 7, 0.0], [12364, 3, 4, 1.48], [11529, 10, 11, 1.16], [3257, 4, 4, 1.04], [5406, 2, 4, 0.36], [13294, 3, 4, 0.58], [12621, 1, 4, 0.72], [9491, 1, 6, 0.44], [20919, 3, 4, 0.35], [11888, 2, 6, 1.39], [1619, 1, 4, 0.4], [23031, 3, 6, 0.61], [9488, 2, 4, 0.36], [11322, 3, 6, 0.8], [5813, 3, 6, 0.54], [8907, 25, 6, 0.33], [2111, 3, 9, 0.38], [8155, 2, 4, 0.6], [8121, 3, 6, 0.28], [9780, 1, 4, 0.58], [2325, 2, 4, 0.65], [12309, 2, 4, 0.62], [10413, 1, 4, 0.0], [23038, 10, 7, 0.86], [9877, 15, 4, 0.53], [1091, 1, 4, 0.4], [11558, 29, 4, 0.61], [11055, 3, 6, 1.87], [12925, 1, 4, 0.43], [10148, 1, 7, 0.37], [10275, 3, 4, 0.44], [13109, 3, 6, 1.94], [10987, 2, 4, 0.47], [20317, 3, 4, 1.23], [3899, 3, 6, 0.43], [12230, 3, 4, 0.34], [12609, 1, 4, 0.43], [9820, 3, 4, 1.14], [458, 3, 7, 0.35], [5434, 1, 4, 0.65], [5243, 3, 6, 0.36], [17, 1, 4, 0.44], [9779, 1, 4, 0.58], [13023, 1, 4, 0.69], [9612, 12, 4, 0.62], [13855, 3, 4, 0.6], [22330, 3, 6, 1.4], [6225, 1, 46, 0.0], [9088, 25, 4, 0.43], [2418, 80, 4, 0.81], [4967, 2, 4, 0.37], [10986, 2, 4, 0.3], [4178, 3, 4, 0.41], [6966, 3, 4, 1.1], [2743, 3, 4, 0.42], [2866, 2, 4, 0.47], [5538, 1, 4, 0.33], [2417, 80, 4, 0.73], [2103, 1, 4, 0.4], [3906, 14, 6, 0.46], [11859, 1, 4, 0.58], [5811, 3, 4, 0.51], [21778, 2, 4, 0.0], [114, 1, 4, 0.0], [10115, 1, 4, 0.3], [2216, 1, 4, 0.87], [22247, 2, 6, 0.86], [5341, 1, 4, 0.55], [9489, 2, 4, 0.32], [11887, 1, 4, 0.0], [11719, 1, 6, 0.0], [9482, 2, 4, 0.4], [19984, 2, 4, 0.54], [9379, 1, 4, 0.36], [8279, 2, 6, 1.39], [11710, 1, 6, 0.38], [23248, 25, 4, 0.37], [12577, 3, 6, 0.63], [21269, 3, 4, 1.3], [12250, 14, 4, 0.28], [23239, 29, 4, 0.32], [21694, 1, 4, 1.11], [1116, 1, 4, 0.29], [12721, 2, 6, 0.86], [10991, 1, 6, 0.98], [2217, 16, 4, 0.96], [10631, 2, 6, 0.51], [1060, 1, 4, 0.0], [11564, 29, 9, 0.61], [1599, 68, 4, 1.18], [11337, 7, 4, 0.88], [21486, 3, 4, 0.49], [6222, 7, 6, 0.0], [11557, 80, 4, 0.51], [23645, 68, 4, 0.29], [10412, 1, 4, 0.37], [9481, 2, 4, 0.42], [10483, 7, 7, 0.0], [1519, 1, 4, 0.33], [21774, 2, 4, 0.0], [9493, 1, 4, 0.0], [23337, 3, 4, 0.76], [20961, 1, 6, 0.62], [11020, 3, 6, 0.79], [344, 2, 4, 0.56], [19966, 29, 4, 0.36], [21454, 2, 4, 0.54], [13299, 1, 4, 0.56], [8891, 1, 4, 0.0], [9483, 2, 4, 0.45], [424, 11, 12, 0.91], [9484, 2, 4, 0.42], [20921, 3, 4, 0.33], [23380, 29, 4, 0.36], [6225, 7, 4, 0.0], [14013, 3, 4, 0.49], [12645, 1, 6, 0.41], [19996, 2, 4, 0.0], [9480, 2, 4, 0.45], [11634, 1, 4, 0.31], [3340, 3, 4, 1.45], [12356, 1, 4, 1.17], [19970, 25, 4, 0.49], [8189, 10, 7, 0.39], [2169, 3, 4, 0.61], [11105, 3, 4, 0.41], [6220, 7, 6, 0.0], [13256, 25, 4, 0.4], [20918, 3, 4, 0.57], [13200, 10, 4, 0.37], [12417, 3, 6, 0.65], [9864, 10, 7, 0.35], [7191, 1, 6, 0.93], [10396, 1, 6, 0.42], [21773, 2, 4, 0.35], [10988, 2, 4, 0.5], [1260, 1, 4, 0.0], [8676, 2, 6, 0.9], [12302, 2, 4, 0.52], [13494, 3, 6, 0.62], [3977, 3, 4, 1.04], [4866, 1, 4, 0.41], [3721, 25, 4, 0.56], [12255, 14, 4, 0.28], [11427, 1, 4, 0.0], [2202, 1, 4, 0.18], [8357, 1, 4, 0.68], [23546, 3, 6, 0.45], [5660, 2, 4, 1.58], [1814, 2, 4, 0.39], [12612, 1, 4, 0.35], [19968, 29, 4, 0.0], [11732, 3, 4, 0.5], [12028, 2, 6, 0.8], [22087, 10, 6, 0.42], [1560, 1, 4, 0.82], [8281, 2, 6, 1.39], [9952, 1, 4, 1.35], [2863, 2, 4, 0.48], [12024, 2, 4, 0.8], [20920, 3, 4, 0.33], [12623, 10, 6, 0.37], [24126, 3, 4, 0.42], [2669, 1, 4, 0.89], [6799, 7, 6, 0.0], [10414, 1, 4, 0.37], [8187, 10, 7, 0.45], [13853, 3, 4, 0.55], [8104, 1, 17, 0.0], [71, 1, 4, 0.38], [14014, 3, 4, 0.39], [2744, 3, 4, 0.46], [12546, 2, 4, 0.69], [2168, 3, 6, 0.85], [11333, 7, 7, 1.07], [9296, 1, 4, 0.57], [12249, 14, 4, 0.27], [22865, 7, 9, 0.69], [6931, 2, 4, 0.58], [1504, 2, 6, 1.08], [24127, 3, 4, 0.42], [2013, 2, 4, 1.08], [2709, 15, 4, 0.56], [9088, 29, 6, 0.43], [5853, 1, 4, 0.33], [5849, 1, 4, 0.37], [2733, 3, 4, 0.93], [1433, 1, 4, 0.86], [12534, 10, 8, 0.45], [12311, 2, 4, 0.61], [11636, 1, 4, 0.32], [8363, 1, 4, 0.5], [23335, 14, 7, 0.6], [19991, 2, 4, 0.24], [11450, 1, 4, 0.0], [7729, 7, 11, 0.0], [8903, 7, 15, 0.0], [12033, 2, 4, 0.93], [12661, 1, 4, 0.4], [3907, 14, 6, 0.64], [949, 10, 6, 0.66], [12512, 1, 4, 0.49], [5852, 1, 4, 0.33], [947, 1, 4, 0.52], [8510, 1, 8, 0.0], [6565, 7, 4, 0.0], [13116, 1, 4, 0.44], [22088, 10, 6, 0.42], [12496, 1, 4, 0.41], [9782, 1, 6, 0.61], [8891, 7, 26, 0.0], [13487, 1, 4, 0.57], [23994, 25, 4, 0.43], [8968, 1, 4, 0.7], [2835, 3, 11, 0.47], [5420, 2, 4, 0.45], [9460, 1, 4, 0.67], [23040, 1, 4, 0.0], [5940, 1, 4, 0.0], [20952, 3, 4, 0.62], [336, 16, 4, 0.37], [11587, 1, 7, 0.92], [11848, 1, 8, 0.0], [2507, 2, 4, 0.21], [1006, 2, 6, 0.4], [2729, 3, 4, 0.93], [13034, 1, 4, 0.0], [13038, 3, 11, 1.04], [12253, 3, 6, 0.28], [1598, 68, 4, 1.24], [21709, 3, 10, 0.37], [12227, 2, 4, 0.66], [2417, 29, 4, 0.73], [8674, 2, 4, 0.9], [23247, 25, 4, 0.39], [12056, 2, 6, 0.76], [12220, 3, 14, 1.21], [3429, 1, 4, 0.39], [13854, 3, 4, 0.6], [6569, 1, 4, 0.0], [10983, 2, 4, 0.37], [586, 1, 4, 0.47], [22179, 1, 4, 0.51], [23039, 1, 4, 0.0], [12222, 3, 11, 0.36], [19985, 2, 4, 0.39], [13336, 29, 6, 0.37], [11857, 1, 4, 0.58], [6341, 3, 6, 0.0], [12339, 2, 4, 0.74], [6608, 2, 4, 0.42], [6083, 3, 4, 0.38], [6197, 7, 10, 0.0], [2662, 1, 4, 0.83], [11727, 29, 7, 0.55], [2376, 10, 6, 0.33], [19969, 29, 4, 0.56], [5647, 2, 4, 0.29], [1324, 1, 4, 0.4], [13504, 7, 7, 0.0], [19992, 2, 4, 0.0], [23529, 3, 4, 0.47], [2668, 1, 4, 1.02], [11155, 11, 7, 0.32], [12449, 1, 4, 0.41], [3723, 29, 4, 0.88], [2774, 2, 6, 1.07], [10630, 2, 4, 0.51], [4819, 29, 7, 0.72], [12055, 2, 7, 0.76], [12658, 1, 4, 0.91], [880, 2, 4, 1.6], [973, 1, 4, 0.0], [23544, 3, 6, 0.43], [1050, 2, 7, 0.26], [8254, 25, 4, 0.58], [1169, 3, 4, 1.84], [11840, 1, 4, 0.44], [21708, 3, 10, 0.48], [4968, 1, 10, 0.53], [1414, 16, 4, 0.4], [10529, 80, 4, 0.82], [1851, 1, 4, 0.35], [11689, 1, 4, 0.2], [23992, 29, 6, 0.48], [22667, 2, 4, 0.28], [2859, 16, 4, 0.61], [20311, 23, 7, 1.75], [13254, 29, 6, 0.35], [9529, 1, 4, 0.44], [8190, 10, 8, 0.36], [948, 15, 7, 0.27], [21927, 1, 4, 0.23], [4653, 2, 4, 0.43], [2726, 3, 7, 1.01], [12045, 1, 4, 0.35], [19879, 1, 4, 0.31], [12212, 29, 6, 0.48], [788, 2, 4, 0.33], [11321, 3, 4, 0.81], [21777, 2, 4, 0.35], [12911, 3, 10, 0.44], [11495, 1, 4, 0.49], [12232, 3, 4, 0.39], [10640, 1, 4, 0.34], [738, 1, 4, 0.53], [2826, 1, 4, 0.48], [8927, 10, 13, 0.29], [22876, 3, 4, 0.62], [22436, 3, 6, 0.57], [11399, 2, 6, 0.58], [12360, 1, 6, 1.28], [2862, 2, 4, 0.49], [11305, 2, 4, 1.43], [2538, 1, 6, 0.0], [11557, 29, 4, 0.51], [21683, 1, 4, 0.0], [20953, 3, 4, 0.63], [12492, 3, 4, 0.45], [11492, 1, 10, 0.25], [11690, 1, 6, 0.22], [3132, 10, 6, 0.61], [5541, 1, 4, 0.34], [12228, 2, 4, 0.65], [12675, 3, 4, 0.8], [12489, 1, 4, 0.0], [5939, 1, 4, 0.0], [12611, 1, 4, 0.45], [23551, 3, 4, 0.45], [10530, 29, 4, 0.61], [9626, 3, 6, 0.45], [9530, 25, 4, 0.35], [7566, 3, 7, 0.0], [1070, 7, 8, 0.51], [947, 16, 4, 0.52], [3388, 1, 4, 0.86], [11565, 80, 4, 0.61], [7569, 3, 6, 0.0], [2054, 1, 4, 0.0], [2216, 16, 4, 0.88], [11610, 3, 4, 0.43], [12361, 1, 4, 1.31], [5653, 2, 4, 0.31], [2378, 10, 4, 0.36], [2991, 1, 6, 0.84], [8907, 29, 6, 0.32], [11903, 332, 7, 0.0], [9251, 3, 6, 0.94], [10815, 1, 4, 0.0], [1080, 3, 4, 2.73], [13242, 25, 6, 0.43], [12245, 3, 4, 0.27], [12357, 1, 4, 1.31], [2190, 1, 4, 0.33], [3387, 1, 4, 0.86], [23235, 29, 8, 0.52], [10722, 2, 4, 0.33], [4867, 1, 4, 0.41], [8660, 1, 4, 0.71], [21779, 2, 4, 0.0], [6946, 1, 4, 1.03], [2055, 1, 5, 0.0], [670, 3, 4, 1.06], [11721, 1, 4, 0.0], [9148, 2, 4, 0.33], [1049, 2, 6, 0.26], [2491, 3, 6, 0.85], [2216, 15, 4, 0.86], [9129, 1, 4, 0.3], [13393, 23, 4, 0.38], [9347, 1, 4, 0.34], [23533, 3, 6, 0.6], [12946, 3, 6, 0.79], [8753, 1, 4, 0.53], [3908, 7, 7, 1.04], [1513, 3, 7, 0.3], [10530</t>
+  </si>
+  <si>
+    <t>[[305, 2, 19, 0.65], [130, 1, 12, 0.33], [6935, 2, 62, 1.16], [143, 2, 13, 0.52], [2328, 2, 24, 0.76], [145, 2, 12, 0.55], [141, 2, 15, 0.54], [146, 2, 13, 0.71], [8650, 2, 20, 0.89], [8672, 2, 20, 0.75], [2327, 2, 16, 0.76], [2778, 2, 32, 0.79], [5491, 2, 10, 0.67], [205, 2, 8, 0.66], [11838, 2, 16, 0.74], [11737, 2, 12, 0.27], [5493, 2, 10, 0.68], [248, 1, 11, 0.57], [362, 2, 19, 0.53], [11837, 2, 12, 0.74], [75, 2, 15, 0.0], [361, 2, 12, 0.54], [144, 2, 10, 0.72], [206, 2, 7, 0.66], [417, 2, 11, 0.54], [8648, 2, 8, 0.89], [11835, 2, 12, 0.73], [523, 2, 11, 0.54], [8853, 2, 25, 1.16], [589, 2, 14, 0.0], [1005, 2, 7, 0.33], [615, 2, 12, 0.74], [9507, 3, 6, 0.21], [434, 2, 8, 0.29], [990, 2, 9, 1.12], [12721, 2, 14, 0.72], [1504, 2, 15, 0.22], [2049, 3, 19, 0.3], [11681, 2, 19, 0.5], [8675, 2, 12, 0.75], [326, 2, 17, 0.0], [1124, 2, 16, 0.43], [11739, 2, 11, 0.27], [378, 2, 7, 0.88], [8915, 2, 11, 0.0], [435, 2, 6, 0.28], [151, 1, 17, 0.39], [6936, 2, 19, 1.16], [2776, 2, 10, 0.79], [76, 2, 8, 0.51], [1446, 2, 7, 0.0], [11738, 2, 12, 0.28], [142, 2, 8, 0.54], [8649, 2, 7, 0.89], [12720, 2, 8, 0.72], [2497, 2, 8, 0.83], [8676, 2, 9, 0.75], [59, 3, 11, 0.38], [3, 2, 14, 1.73], [10574, 3, 11, 0.72], [8938, 2, 7, 0.0], [11234, 2, 12, 0.5], [1007, 2, 11, 0.42], [3670, 2, 13, 1.1], [2424, 29, 10, 0.94], [2055, 3, 6, 0.45], [1413, 15, 4, 0.43], [2054, 3, 7, 0.45], [2423, 29, 8, 0.77], [2423, 80, 8, 0.77], [2424, 80, 8, 0.94], [412, 1, 7, 0.58], [346, 3, 6, 0.52], [22247, 2, 7, 0.72], [10993, 2, 12, 0.49], [6497, 1, 13, 1.59], [1429, 2, 6, 0.0], [8673, 2, 9, 0.68], [2050, 3, 7, 0.45], [1163, 3, 8, 0.41], [2859, 15, 4, 0.55], [413, 1, 6, 0.62], [140, 2, 6, 0.69], [10149, 3, 31, 0.66], [7084, 3, 4, 0.97], [307, 2, 4, 0.65], [3429, 15, 4, 0.39], [8274, 3, 7, 0.38], [13962, 1, 4, 0.45], [2774, 2, 8, 0.83], [6158, 2, 11, 0.37], [944, 15, 4, 0.46], [1339, 3, 24, 0.37], [411, 2, 4, 1.4], [13928, 1, 4, 0.59], [11919, 1, 8, 0.41], [346, 1, 12, 0.51], [1126, 2, 7, 0.41], [74, 1, 12, 2.29], [7704, 2, 10, 0.58], [8943, 3, 6, 0.56], [22316, 3, 8, 0.6], [418, 2, 4, 0.53], [159, 3, 10, 0.31], [9784, 1, 4, 0.54], [20252, 2, 7, 0.62], [1050, 2, 4, 0.32], [7705, 2, 10, 0.58], [950, 1, 10, 0.82], [3478, 2, 11, 0.99], [13967, 1, 4, 0.46], [1243, 2, 10, 2.1], [18964, 1, 8, 0.56], [2057, 3, 7, 0.45], [1339, 1, 7, 0.35], [7706, 2, 10, 0.58], [114, 3, 4, 0.17], [14037, 3, 8, 0.29], [13028, 3, 9, 1.7], [11236, 2, 7, 0.49], [20256, 2, 5, 0.69], [1049, 2, 4, 0.32], [3891, 1, 5, 1.67], [963, 3, 6, 0.64], [11504, 2, 4, 0.53], [410, 1, 5, 1.93], [565, 2, 11, 0.98], [6952, 1, 9, 0.79], [3893, 1, 6, 1.69], [336, 15, 4, 0.39], [105, 3, 4, 0.17], [414, 1, 4, 0.62], [416, 1, 6, 0.62], [7004, 1, 4, 0.11], [229, 1, 4, 0.75], [11490, 1, 4, 1.4], [6494, 1, 6, 1.61], [3889, 1, 5, 1.63], [13965, 1, 4, 0.41], [13034, 3, 8, 1.11], [1492, 1, 6, 1.6], [7707, 2, 7, 0.58], [6097, 80, 4, 0.92], [8944, 3, 4, 0.39], [6098, 80, 4, 0.78], [21793, 1, 10, 1.25], [5208, 3, 10, 0.45], [20555, 2, 4, 0.41], [11089, 1, 11, 0.67], [3674, 2, 12, 0.95], [308, 1, 20, 0.54], [6630, 3, 4, 0.5], [10716, 3, 6, 0.27], [60, 3, 10, 0.53], [2912, 1, 10, 0.41], [1490, 1, 7, 0.63], [11491, 2, 4, 0.53], [964, 15, 4, 0.36], [12722, 2, 6, 0.72], [8635, 3, 7, 0.38], [12224, 1, 6, 0.37], [83, 2, 6, 0.33], [6359, 10, 19, 0.35], [22317, 3, 7, 0.6], [9049, 2, 6, 0.67], [7036, 1, 8, 0.97], [2422, 29, 7, 0.86], [202, 2, 4, 0.29], [13260, 29, 4, 0.64], [1413, 16, 4, 0.43], [9507, 1, 10, 0.21], [2422, 80, 6, 0.86], [7708, 2, 6, 0.58], [11914, 1, 6, 0.57], [563, 2, 4, 0.32], [942, 3, 6, 0.61], [22558, 3, 6, 1.16], [1414, 15, 4, 0.43], [20258, 2, 4, 0.66], [88, 10, 15, 0.65], [6098, 29, 4, 0.78], [11159, 1, 20, 1.32], [5165, 1, 7, 0.46], [335, 3, 17, 0.74], [214, 3, 15, 0.37], [247, 1, 4, 0.51], [9827, 3, 4, 0.44], [8939, 2, 4, 0.0], [7703, 2, 6, 0.58], [9690, 1, 4, 0.6], [5020, 23, 23, 0.56], [6097, 29, 6, 0.92], [10406, 10, 12, 0.66], [6628, 3, 4, 0.34], [84, 2, 6, 0.33], [12373, 1, 21, 2.2], [71, 15, 4, 0.39], [2331, 1, 4, 2.42], [12269, 2, 5, 0.57], [11235, 2, 8, 1.31], [440, 3, 4, 2.58], [439, 1, 4, 0.8], [7567, 3, 4, 0.26], [515, 24, 6, 0.63], [11489, 1, 4, 1.4], [10411, 10, 11, 0.57], [332, 2, 4, 0.29], [590, 15, 4, 0.36], [13964, 1, 4, 0.41], [13968, 1, 4, 0.43], [13033, 3, 8, 1.11], [19980, 2, 4, 0.0], [6629, 3, 4, 0.33], [21712, 3, 20, 0.5], [159, 1, 14, 0.3], [1409, 15, 4, 0.46], [13498, 3, 6, 1.15], [10407, 10, 11, 2.92], [12229, 2, 6, 0.58], [9854, 1, 4, 0.93], [186, 3, 14, 0.56], [12526, 2, 6, 0.84], [10717, 3, 4, 0.39], [6627, 3, 4, 0.43], [9786, 1, 4, 0.54], [9785, 1, 4, 0.54], [6496, 1, 7, 2.35], [7885, 4, 6, 0.31], [2421, 29, 4, 0.0], [9491, 21, 14, 0.43], [3104, 1, 8, 0.88], [5209, 3, 9, 0.45], [3495, 3, 23, 0.55], [9372, 1, 11, 1.05], [2991, 3, 6, 0.56], [10410, 10, 10, 2.91], [1274, 1, 4, 0.64], [21798, 1, 6, 0.38], [21713, 3, 12, 0.35], [9126, 1, 7, 1.39], [11844, 2, 6, 0.93], [11920, 1, 6, 0.4], [10409, 10, 11, 0.64], [11769, 1, 4, 0.94], [973, 3, 10, 1.37], [11158, 1, 24, 1.36], [10408, 10, 13, 0.55], [215, 4, 4, 0.96], [9081, 3, 15, 0.81], [11811, 1, 6, 0.65], [11677, 1, 12, 0.87], [2322, 2, 6, 1.51], [345, 3, 6, 0.8], [23275, 2, 4, 0.54], [13263, 29, 4, 0.59], [9829, 3, 4, 0.36], [11603, 2, 6, 1.03], [11954, 1, 6, 0.03], [2805, 137, 13, 1.62], [96, 11, 24, 0.81], [11808, 1, 10, 0.49], [11767, 1, 4, 0.92], [21269, 3, 4, 2.14], [2049, 1, 4, 0.3], [2421, 80, 6, 1.21], [8283, 2, 8, 0.36], [2821, 3, 14, 0.45], [1895, 3, 6, 0.92], [9783, 1, 4, 0.52], [415, 1, 4, 0.62], [8943, 1, 6, 0.57], [432, 3, 7, 0.61], [93, 11, 25, 0.25], [12764, 2, 9, 0.56], [1886, 2, 7, 1.77], [21781, 2, 4, 0.38], [6360, 10, 12, 0.29], [436, 2, 4, 0.8], [11399, 2, 4, 0.45], [13928, 2, 4, 0.6], [5584, 3, 4, 1.37], [147, 1, 4, 0.77], [94, 4, 4, 0.93], [107, 2, 8, 0.63], [9124, 1, 6, 1.39], [149, 2, 4, 0.77], [7250, 3, 4, 0.31], [2326, 2, 4, 0.0], [11953, 1, 8, 0.8], [4232, 80, 6, 0.82], [1548, 1, 4, 0.59], [947, 15, 4, 0.59], [5946, 1, 4, 1.73], [9204, 3, 6, 0.75], [9082, 3, 30, 0.95], [11510, 3, 8, 0.64], [10398, 2, 4, 0.44], [13244, 1, 11, 0.46], [1413, 1, 10, 0.43], [12225, 1, 4, 0.37], [82, 2, 4, 0.33], [7886, 4, 6, 0.32], [2438, 2, 10, 0.39], [8898, 3, 8, 1.76], [7629, 1, 4, 0.57], [3430, 15, 4, 0.4], [11671, 1, 10, 0.81], [6356, 2, 4, 0.32], [4940, 1, 8, 0.46], [11288, 2, 4, 3.28], [3934, 5, 18, 1.77], [2104, 3, 12, 0.38], [7122, 3, 4, 0.5], [19924, 2, 6, 0.89], [437, 3, 4, 0.57], [8926, 1, 4, 1.6], [12271, 2, 4, 0.57], [13488, 1, 7, 0.52], [10406, 1, 4, 0.61], [8285, 2, 6, 0.4], [11772, 1, 7, 2.32], [9760, 29, 6, 1.15], [11770, 1, 10, 1.54], [11087, 2, 7, 0.38], [11836, 2, 6, 0.74], [19687, 1, 4, 0.68], [2013, 2, 5, 1.01], [2859, 16, 4, 0.55], [11402, 1, 4, 1.7], [13025, 3, 6, 0.97], [823, 1, 4, 0.81], [21704, 3, 15, 0.37], [270, 3, 4, 0.57], [9342, 2, 6, 2.17], [11915, 3, 29, 0.38], [7558, 3, 4, 0.25], [159, 16, 4, 0.3], [7120, 3, 4, 0.5], [10525, 3, 6, 1.38], [201, 3, 6, 0.8], [11960, 3, 6, 0.29], [11156, 11, 10, 0.32], [5165, 2, 9, 0.47], [9358, 1, 6, 1.57], [8599, 1, 4, 1.7], [1414, 16, 4, 0.43], [1309, 1, 4, 0.64], [20927, 1, 4, 0.11], [8659, 1, 4, 0.62], [10147, 1, 7, 0.33], [7887, 4, 6, 0.31], [10413, 10, 8, 2.19], [11161, 1, 12, 1.24], [11404, 2, 19, 0.62], [11930, 1, 4, 1.15], [12870, 1, 4, 1.0], [22573, 2, 4, 0.54], [3980, 4, 6, 0.69], [2109, 1, 10, 0.44], [5976, 1, 7, 1.43], [220, 4, 4, 1.04], [7119, 3, 4, 0.5], [991, 2, 4, 1.43], [8286, 2, 6, 0.34], [2912, 2, 11, 0.4], [5243, 3, 5, 0.39], [11180, 1, 4, 1.48], [12223, 1, 4, 0.36], [13023, 3, 10, 0.69], [11931, 1, 4, 1.15], [11581, 29, 8, 0.97], [7005, 1, 4, 0.11], [5005, 3, 8, 0.44], [9828, 3, 4, 0.45], [12309, 2, 4, 0.67], [11084, 2, 7, 0.38], [9065, 2, 6, 0.33], [11611, 2, 4, 0.53], [2103, 15, 4, 0.4], [71, 16, 4, 0.38], [11152, 11, 10, 0.37], [11674, 1, 4, 0.65], [6360, 1, 4, 0.31], [107, 7, 7, 0.62], [3900, 3, 4, 0.65], [21060, 1, 4, 0.68], [3258, 7, 8, 0.68], [938, 3, 7, 0.64], [3429, 16, 4, 0.39], [12992, 3, 14, 0.58], [13024, 3, 6, 0.97], [11088, 2, 7, 0.38], [11586, 1, 12, 0.81], [4253, 1, 4, 0.5], [1703, 2, 4, 1.46], [6805, 1, 6, 0.56], [4372, 10, 12, 0.65], [9877, 15, 4, 0.59], [3609, 24, 6, 1.33], [409, 1, 4, 0.57], [10093, 3, 17, 0.88], [3143, 3, 4, 0.88], [10455, 29, 4, 1.11], [9691, 1, 4, 0.6], [3981, 3, 15, 0.87], [958, 2, 4, 0.39], [10409, 1, 4, 0.59], [11290, 2, 4, 3.28], [10414, 10, 9, 0.33], [97, 11, 20, 0.36], [12340, 2, 4, 0.69], [2436, 4, 4, 0.57], [2111, 3, 10, 0.38], [1701, 2, 4, 1.34], [11154, 11, 11, 0.47], [19932, 1, 4, 0.38], [2368, 3, 6, 0.22], [470, 1, 4, 0.26], [11179, 1, 4, 1.48], [12517, 2, 6, 0.76], [8104, 1, 6, 1.16], [19878, 1, 4, 0.31], [110, 4, 4, 0.64], [20196, 2, 8, 0.66], [98, 11, 24, 0.01], [3257, 4, 4, 1.85], [10411, 1, 4, 0.54], [5517, 1, 4, 0.6], [10514, 3, 6, 0.36], [11690, 2, 6, 0.32], [424, 11, 16, 2.17], [10410, 1, 4, 0.0], [1052, 2, 4, 0.51], [12241, 3, 4, 0.28], [1414, 1, 6, 0.43], [11085, 2, 8, 0.38], [973, 1, 4, 0.0], [11812, 1, 4, 0.37], [11678, 1, 8, 1.16], [13037, 3, 6, 1.89], [5585, 3, 4, 1.33], [10407, 1, 4, 0.0], [8945, 3, 6, 1.73], [8284, 2, 6, 0.33], [8600, 1, 4, 1.63], [2109, 3, 15, 0.44], [11778, 1, 6, 0.44], [8636, 3, 7, 1.27], [21700, 3, 5, 1.06], [23276, 3, 6, 0.69], [12497, 3, 6, 0.42], [2438, 1, 4, 0.39], [13249, 29, 8, 1.26], [2108, 1, 4, 0.36], [10172, 3, 7, 0.42], [10384, 3, 4, 0.32], [8085, 1, 4, 1.19], [12496, 3, 6, 0.42], [11967, 1, 4, 0.3], [8356, 1, 4, 1.2], [13036, 3, 6, 1.89], [2108, 3, 9, 0.35], [944, 16, 4, 0.46], [1125, 2, 7, 0.0], [10527, 3, 14, 0.9], [1575, 1, 4, 0.44], [6575, 3, 6, 0.82], [11304, 2, 4, 3.28], [8188, 10, 9, 0.4], [12058, 3, 7, 0.34], [11587, 1, 7, 0.92], [952, 4, 4, 0.41], [13243, 1, 7, 0.59], [8897, 3, 8, 1.75], [12935, 3, 6, 0.8], [10521, 3, 7, 0.64], [10408, 1, 4, 0.52], [2738, 3, 4, 0.91], [9671, 3, 6, 0.54], [951, 4, 4, 0.46], [66, 15, 4, 0.33], [7702, 2, 46, 0.58], [12979, 1, 4, 0.57], [19383, 21, 11, 0.52], [11887, 2, 10, 0.48], [13433, 2, 12, 0.75], [9997, 80, 4, 0.76], [10148, 1, 4, 0.26], [71, 1, 4, 0.38], [12706, 23, 20, 0.0], [11155, 11, 10, 0.46], [2709, 15, 4, 0.62], [22236, 1, 7, 0.43], [12979, 25, 13, 0.59], [9945, 3, 7, 0.33], [524, 1, 4, 0.58], [13034, 1, 6, 0.0], [1880, 4, 4, 1.97], [1853, 1, 4, 0.41], [19992, 2, 4, 0.0], [5869, 1, 4, 0.64], [4327, 1, 4, 0.35], [12791, 2, 11, 0.42], [3576, 25, 4, 0.6], [11814, 1, 4, 0.42], [9840, 25, 11, 0.47], [11427, 2, 4, 0.34], [4354, 1, 4, 0.84], [6540, 25, 4, 0.76], [11952, 1, 6, 0.89], [10994, 2, 7, 0.51], [7084, 1, 7, 0.0], [12764, 1, 4, 0.56], [2859, 1, 4, 0.55], [1620, 1, 4, 0.42], [5513, 2, 4, 0.5], [2103, 16, 4, 0.4], [3429, 1, 4, 0.39], [12516, 2, 4, 0.76], [8283, 1, 4, 0.34], [3983, 4, 4, 0.69], [11485, 24, 4, 1.2], [12994, 3, 10, 0.58], [9803, 3, 10, 0.32], [21752, 2, 4, 0.0], [14040, 3, 6, 0.34], [11583, 29, 4, 0.45], [19880, 1, 4, 0.31], [420, 2, 8, 0.57], [21706, 3, 14, 0.41], [12993, 3, 8, 0.59], [3576, 29, 4, 0.6], [148, 1, 4, 0.77], [336, 16, 4, 0.4], [22318, 3, 6, 0.9], [5005, 1, 6, 0.44], [1683, 1, 4, 0.41], [5939, 3, 4, 0.49], [3337, 1, 4, 0.44], [6864, 1, 4, 0.65], [7457, 3, 7, 0.42], [12311, 2, 4, 0.57], [21783, 2, 4, 0.37], [7457, 1, 6, 0.43], [20649, 1, 4, 1.73], [6267, 23, 15, 0.48], [6036, 23, 6, 1.56], [21059, 1, 6, 0.69], [590, 16, 4, 0.36], [11152, 1, 4, 0.36], [3442, 29, 5, 0.7], [12053, 2, 8, 0.76], [13494, 3, 6, 1.13], [12057, 2, 6, 0.76], [3894, 1, 4, 1.73], [23796, 2, 13, 0.35], [3984, 3, 9, 0.87], [10581, 3, 8, 1.4], [12054, 2, 4, 0.76], [12339, 2, 4, 0.62], [10507, 2, 4, 0.32], [2419, 80, 4, 1.2], [11625, 29, 4, 0.4], [9996, 80, 4, 0.92], [1054, 10, 8, 0.33], [6359, 1, 4, 0.37], [5872, 1, 4, 0.64], [23040, 10, 8, 2.94], [1744, 1, 4, 0.64], [13323, 3, 4, 0.42], [9841, 25, 11, 0.47], [8637, 3, 8, 1.38], [12791, 1, 9, 0.44], [11813, 1, 6, 0.58], [471, 1, 4, 0.35], [19686, 1, 4, 0.33], [1450, 2, 6, 0.37], [12924, 1, 4, 0.43], [13198, 29, 4, 0.62], [12449, 2, 7, 0.43], [13486, 1, 4, 0.52], [5940, 3, 4, 0.47], [963, 1, 4, 0.63], [5341, 15, 4, 0.55], [10707, 1, 6, 1.15], [6266, 23, 14, 0.48], [2985, 3, 4, 0.38], [3258, 1, 6, 0.68], [2419, 29, 5, 1.2], [23031, 3, 4, 0.61], [11085, 1, 4, 0.39], [5340, 23, 9, 0.4], [12302, 2, 4, 0.52], [2217, 1, 6, 0.96], [12653, 1, 7, 0.38], [9289, 29, 4, 1.25], [11710, 3, 8, 0.44], [11960, 1, 6, 0.28], [5733, 2, 13, 0.42], [2369, 3, 6, 0.51], [13258, 29, 7, 0.72], [1801, 1, 4, 1.2], [12658, 1, 6, 1.08], [4372, 1, 4, 0.67], [21003, 2, 4, 0.66], [11527, 10, 8, 0.3], [3840, 1, 4, 0.4], [11091, 1, 4, 0.29], [6872, 25, 6, 0.63], [2111, 1, 4, 0.36], [19931, 1, 7, 0.34], [2991, 1, 4, 0.56], [13258, 25, 4, 0.72], [8944, 1, 4, 0.39], [6035, 23, 6, 1.56], [11528, 10, 7, 0.3], [21701, 3, 4, 1.04], [11687, 2, 6, 0.3], [11901, 2, 4, 0.47], [2990, 3, 4, 0.71], [3230, 1, 6, 0.39], [13244, 2, 10, 0.46], [8896, 1, 4, 1.15], [11794, 2, 7, 0.3], [9960, 3, 4, 0.28], [3610, 24, 4, 0.76], [19883, 1, 4, 0.31], [21004, 2, 4, 0.66], [3334, 5, 12, 1.51], [12647, 1, 8, 0.7], [3909, 7, 8, 0.65], [13035, 3, 7, 0.99], [1523, 1, 4, 0.96], [9820, 3, 4, 1.45], [20650, 1, 4, 1.76], [11426, 25, 4, 0.6], [11156, 1, 4, 0.31], [11450, 2, 6, 0.32], [12503, 1, 10, 0.36], [4232, 29, 4, 0.82], [11793, 2, 6, 1.57], [23920, 2, 4, 0.93], [9672, 3, 6, 0.54], [8286, 1, 4, 0.32], [12538, 3, 6, 0.29], [5735, 2, 8, 0.45], [11529, 10, 7, 0.3], [12594, 7, 4, 0.28], [2323, 2, 4, 1.51], [506, 1, 4, 0.77], [8753, 2, 8, 0.5], [9125, 1, 11, 1.39], [12379, 1, 4, 1.15], [5646, 2, 4, 0.34], [6872, 29, 4, 0.62], [12010, 3, 4, 0.11], [13243, 2, 7, 0.59], [1813, 2, 4, 0.23], [12239, 3, 6, 0.26], [19341, 2, 4, 0.36], [1668, 1, 4, 0.59], [2857, 1, 4, 0.35], [21703, 3, 4, 1.06], [2325, 2, 4, 1.49], [3338, 1, 4, 0.61], [10537, 3, 6, 0.43], [19964, 25, 6, 0.7], [2196, 25, 4, 1.4], [21317, 3, 4, 0.34], [12663, 1, 4, 0.29], [9778, 1, 4, 0.57], [19982, 2, 4, 0.39], [19685, 1, 5, 0.0], [3910, 7, 12, 0.65], [10254, 1, 4, 0.97], [3899, 3, 4, 0.58], [2308, 25, 6, 0.82], [4175, 3, 12, 0.87], [1409, 1, 4, 0.46], [10720, 80, 4, 0.47], [12059, 3, 7, 0.34], [23039, 10, 8, 2.93], [11182, 1, 19, 2.51], [12646, 1, 8, 0.71], [11090, 1, 4, 0.29], [3664, 5, 17, 1.86], [12576, 3, 6, 0.59], [11426, 29, 4, 0.6], [4651, 2, 4, 0.43], [4222, 4, 4, 0.88], [20965, 3, 6, 1.15], [11116, 1, 4, 0.29], [4176, 4, 4, 0.69], [1120, 1, 4, 0.36], [11899, 2, 4, 0.49], [3577, 25, 6, 0.53], [23028, 3, 6, 0.61], [8189, 10, 7, 0.39], [426, 1, 8, 0.6], [5153, 2, 4, 0.4], [11412, 29, 4, 1.12], [8355, 1, 4, 1.19], [22126, 2, 4, 0.36], [11155, 1, 4, 0.39], [21316, 3, 4, 0.34], [13033, 1, 4, 0.0], [12236, 3, 6, 0.29], [13293, 3, 6, 0.58], [9995, 80, 4, 0.36], [12656, 1, 4, 0.9], [334, 25, 6, 1.87], [12055, 2, 4, 0.76], [12338, 29, 4, 0.46], [21010, 2, 4, 0.66], [922, 1, 4, 0.29], [10668, 3, 4, 0.49], [1648, 1, 4, 0.96], [23032, 3, 7, 0.59], [944, 1, 4, 0.46], [13259, 29, 7, 0.0], [4032, 29, 8, 0.88], [9777, 1, 4, 0.44], [3575, 29, 4, 0.62], [23611, 3, 6, 0.65], [19977, 2, 4, 2.11], [13247, 29, 4, 0.0], [9085, 25, 6, 1.16], [1120, 3, 8, 0.36], [11564, 29, 7, 0.78], [1743, 1, 4, 0.63], [12304, 1, 11, 2.21], [2992, 3, 4, 0.72], [2492, 1, 4, 0.54], [10666, 3, 4, 0.43], [19981, 2, 4, 0.25], [1728, 1, 4, 0.58], [19882, 1, 4, 0.31], [4966, 2, 4, 0.27], [11150, 2, 7, 0.4], [21454, 2, 4, 0.39], [7673, 7, 17, 0.37], [45, 2, 4, 2.93], [515, 1, 4, 0.0], [10670, 3, 4, 0.39], [23539, 3, 4, 0.47], [19375, 3, 4, 0.3], [12654, 1, 4, 0.9], [1722, 2, 4, 0.34], [12249, 14, 4, 0.27], [21712, 1, 4, 0.5], [12585, 3, 6, 0.59], [3989, 3, 6, 0.87], [8927, 10, 16, 0.42], [12030, 2, 4, 0.8], [11084, 1, 4, 0.39], [4326, 1, 4, 0.36], [8754, 2, 7, 0.38], [8106, 10, 4, 0.55], [5577, 3, 4, 1.18], [1432, 25, 6, 1.3], [21269, 1, 4, 0.0], [21091, 7, 6, 0.29], [12227, 2, 4, 1.5], [11087, 1, 4, 0.39], [11088, 1, 4, 0.39], [12056, 2, 4, 0.76], [11885, 2, 6, 0.49], [8756, 2, 8, 0.5], [8191, 10, 7, 0.38], [11492, 1, 4, 0.0], [22888, 3, 5, 0.45], [972, 3, 6, 0.62], [8688, 14, 6, 0.71], [8280, 2, 4, 2.17], [66, 1, 6, 0.33], [3577, 29, 4, 0.53], [21773, 2, 4, 0.35], [936, 3, 6, 0.59], [11895, 1, 4, 0.28], [3016, 68, 4, 0.97], [345, 1, 6, 0.0], [560, 1, 4, 1.15], [12588, 3, 6, 0.72], [9342, 1, 4, 0.0], [5111, 1, 4, 0.66], [10574, 1, 4, 0.7], [13259, 25, 4, 1.55], [11771, 1, 4, 1.04], [21774, 2, 4, 0.0], [5866, 1, 4, 0.45], [21315, 3, 4, 0.34], [3575, 25, 4, 0.62], [10529, 80, 4, 0.82], [1619, 1, 6, 0.41], [5730, 2, 4, 0.0], [8360, 1, 4, 0.61], [964, 16, 4, 0.36], [1406, 25, 4, 0.47], [19384, 2, 4, 0.39], [1514, 1, 4, 0.31], [21486, 3, 4, 0.52], [4586, 10, 15, 0.39], [10531, 14, 8, 0.53], [13853, 3, 4, 0.55], [12923, 1, 4, 0.4], [2103, 1, 4, 0.4], [5341, 16, 4, 0.55], [7573, 1, 10, 0.63], [344, 2, 6, 0.56], [11092, 1, 4, 0.29], [11582, 29, 4, 0.53], [949, 10, 4, 1.28], [3892, 1, 4, 1.48], [9085, 29, 4, 1.15], [1814, 2, 4, 0.27], [23992, 29, 7, 0.46], [21699, 3, 4, 0.57], [11154, 1, 4, 0.4], [1095, 2, 6, 0.35], [19984, 2, 4, 1.46], [20966, 3, 6, 1.15], [13324, 3, 4, 0.42], [12930, 2, 4, 0.39], [13325, 3, 6, 0.5], [1805, 2, 4, 1.41], [22968, 1, 4, 0.38], [11619, 1, 4, 0.53], [11859, 1, 4, 0.67], [19334, 2, 4, 0.34], [12614, 1, 4, 0.42], [8285, 1, 4, 0.38], [11861, 3, 4, 0.46], [13487, 1, 4, 0.52], [11413, 29, 4, 1.12], [13257, 29, 10, 0.7], [8990, 25, 4, 0.77], [10719, 80, 4, 0.52], [66, 16, 4, 0.33], [6728, 1, 4, 0.48], [13023, 1, 4, 0.69], [11886, 2, 6, 0.55], [1324, 1, 4, 0.44], [5452, 1, 4, 0.59], [12029, 2, 6, 0.8], [21697, 3, 4, 0.57], [9960, 1, 4, 0.28], [5868, 1, 4, 0.64], [7191, 1, 6, 1.1], [23030, 3, 6, 0.58], [3390, 1, 4, 0.97], [10459, 3, 7, 1.64], [333, 25, 4, 1.85], [11689, 2, 6, 0.3], [4001, 3, 10, 0.84], [10580, 3, 7, 1.72], [11618, 1, 4, 0.54], [3430, 1, 4, 0.4], [12270, 2, 4, 0.58], [9087, 25, 6, 0.8], [9841, 1, 6, 0.45], [12218, 3, 6, 0.53], [12031, 2, 4, 0.8], [10669, 3, 4, 0.46], [21480, 7, 8, 1.12], [12032, 2, 4, 0.8], [10124, 1, 7, 0.36], [1059, 1, 7, 0.0], [10530, 80, 6, 0.81], [2287, 25, 4, 0.78], [9796, 3, 14, 0.82], [947, 16, 4, 0.59], [12952, 21, 4, 1.37], [23540, 3, 4, 0.47], [9797, 3, 10, 0.82], [209, 3, 4, 0.84], [4030, 25, 4, 0.65], [2504, 10, 11, 0.25], [11868, 3, 4, 0.52], [13855, 3, 6, 0.6], [22321, 1, 4, 0.33], [11467, 1, 4, 1.78], [21789, 2, 8, 0.38], [474, 1, 4, 0.53], [6034, 23, 6, 1.56], [11900, 2, 4, 0.41], [20978, 1, 4, 1.17], [11710, 1, 4, 0.44], [11493, 1, 4, 0.37], [2104, 1, 4, 0.38], [1024, 1, 4, 0.34], [22908, 3, 7, 1.13], [13336, 29, 6, 0.53], [23038, 10, 7, 2.16], [5769, 3, 11, 0.0], [1055, 2, 6, 0.25], [20198, 2, 4, 0.66], [5152, 2, 4, 1.19], [4043, 25, 6, 0.45], [95, 3, 13, 1.86], [23660, 2, 4, 0.9], [10462, 3, 7, 1.64], [21487, 3, 4, 0.52], [2743, 3, 6, 0.48], [12587, 3, 6, 0.72], [11775, 1, 4, 1.34], [23247, 25, 4, 0.29], [3898, 3, 4, 0.59], [1059, 3, 6, 0.58], [11226, 1, 4, 0.38], [9207, 29, 6, 0.44], [9922, 11, 10, 0.41], [11162, 1, 41, 2.01], [12240, 14, 5, 0.27], [9840, 1, 4, 0.45], [3896, 29, 4, 0.65], [22878, 7, 4, 0.56], [9253, 3, 6, 0.56], [3988, 4, 4, 0.78], [5128, 1, 4, 0.51], [13399, 3, 4, 0.28], [11848, 1, 4, 0.59], [1407, 25, 4, 1.38], [3024, 3, 4, 0.41], [88, 1, 4, 0.66], [3982, 3, 18, 0.84], [11888, 2, 5, 2.17], [8279, 2, 6, 2.17], [12332, 2, 4, 0.42], [4653, 2, 4, 0.43], [105, 1, 4, 0.0], [1742, 1, 4, 0.66], [13268, 29, 4, 0.59], [59, 1, 4, 0.0], [5867, 1, 4, 0.63], [12489, 1, 4, 0.26], [12586, 3, 6, 0.72], [5734, 2, 6, 0.0], [13004, 3, 4, 0.27], [11846, 3, 6, 0.52], [19988, 2, 4, 0.0], [962, 10, 8, 0.36], [12033, 2, 4, 0.8], [5769, 1, 6, 0.0], [6540, 29, 4, 0.76], [11181, 1, 11, 2.14], [20556, 2, 4, 0.59], [3599, 25, 4, 2.46], [3906, 14, 6, 0.63], [2835, 3, 9, 0.47], [10722, 2, 4, 0.32], [11896, 2, 4, 0.35], [9087, 29, 7, 0.8], [3905, 14, 6, 0.0], [12335, 2, 4, 0.42], [3976, 3, 7, 0.87], [3021, 68, 4, 0.37], [3975, 4, 4, 0.69], [20977, 1, 4, 1.17], [23960, 3, 4, 0.44], [10460, 3, 6, 1.64], [2833, 3, 9, 0.29], [11887, 1, 6, 0.48], [1432, 2, 4, 0.0], [9493, 1, 11, 1.1], [4329, 3, 6, 0.33], [5871, 1, 4, 0.62], [10172, 1, 4, 0.41], [19966, 25, 4, 0.4], [12502, 1, 7, 1.83], [3986, 4, 4, 0.7], [10414, 1, 4, 0.36], [19342, 2, 4, 0.42], [3559, 11, 15, 0.49], [13854, 3, 6, 0.6], [12255, 14, 4, 0.3], [7673, 2, 4, 0.34], [5811, 3, 4, 0.51], [825, 1, 4, 0.36], [23545, 3, 7, 0.53], [10721, 80, 4, 0.46], [23544, 3, 7, 0.53], [8167, 7, 6, 0.94], [12250, 14, 4, 0.28], [2308, 29, 4, 0.81], [12024, 2, 4, 0.8], [2364, 3, 6, 0.54], [5812, 3, 4, 0.6], [12025, 2, 4, 0.8], [19965, 25, 6, 0.4], [21476, 7, 6, 0.93], [11633, 1, 4, 0.34], [109, 4, 4, 0.69], [11215, 1, 4, 0.63], [2324, 2, 4, 1.64], [22877, 7, 6, 0.57], [8281, 2, 7, 2.17], [1453, 2, 4, 0.46], [11435, 2, 6, 0.33], [19339, 2, 4, 0.34], [12494, 3, 4, 0.3], [5813, 3, 6, 0.54], [9209, 25, 4, 0.63], [4043, 29, 4, 0.46], [12034, 2, 4, 0.8], [8945, 1, 6, 0.0], [1070, 7, 11, 0.51], [9138, 2, 6, 0.66], [8190, 10, 7, 0.36], [201, 1, 6, 0.0], [96, 1, 4, 0.0], [12613, 1, 4, 0.45], [19358, 23, 6, 0.43], [12162, 2, 4, 0.43], [2234, 1, 4, 0.64], [10446, 10, 11, 0.37], [11093, 1, 4, 0.29], [9780, 1, 4, 0.58], [13251, 29, 4, 0.44], [13485, 1, 4, 0.52], [10897, 1, 8, 1.92], [22037, 7, 10, 0.62], [9998, 80, 4, 0.95], [6575, 1, 7, 0.82], [3903, 14, 6, 0.72], [114, 1, 4, 0.0], [8156, 25, 4, 1.85], [21320, 7, 14, 1.0], [336, 1, 10, 0.4], [2417, 29, 4, 0.73], [20249, 3, 5, 0.38], [13201, 10, 4, 2.14], [10988, 2, 4, 0.36], [8155, 25, 6, 0.6], [1851, 1, 4, 0.3], [9239, 25, 4, 0.43], [3430, 16, 4, 0.4], [23661, 2, 4, 0.81], [9083, 3, 6, 0.73], [10898, 1, 9, 0.37], [947, 1, 4, 0.59], [426, 15, 4, 0.6], [3599, 29, 4, 0.0], [4223, 4, 4, 0.8], [12925, 1, 4, 0.43], [11564, 80, 4, 0.78], [9239, 29, 4, 0.43], [23380, 25, 6, 0.36], [5076, 1, 6, 0.31], [23962, 3, 4, 0.41], [10174, 1, 4, 0.34], [2193, 1, 49, 0.26], [2538, 1, 4, 0.0], [3609, 1, 4, 1.32], [10413, 1, 4, 0.0], [4030, 29, 4, 0.65], [23992, 25, 4, 0.45], [426, 16, 4, 0.6], [13256, 25, 4, 0.42], [1116, 1, 4, 1.43], [13006, 3, 4, 0.25], [2100, 25, 6, 0.51], [1454, 3, 4, 0.34], [11150, 1, 4, 0.4], [23961, 3, 4, 0.42], [8361, 1, 4, 0.61], [11427, 1, 4, 0.35], [12534, 10, 12, 0.45], [13246, 29, 4, 0.0], [789, 2, 4, 0.33], [11185, 23, 4, 2.16], [10529, 29, 7, 0.82], [3389, 1, 4, 0.97], [14038, 3, 6, 0.57], [19879, 1, 4, 0.31], [2190, 1, 4, 0.33], [21698, 3, 4, 0.56], [12644, 1, 6, 0.0], [12648, 1, 6, 1.77], [2366, 3, 4, 0.55], [7250, 1, 6, 0.29], [9997, 29, 4, 0.76], [1407, 2, 4, 0.0], [13299, 1, 4, 0.6], [10146, 1, 6, 0.42], [24127, 3, 4, 0.48], [9209, 29, 4, 0.63], [9491, 1, 4, 0.43], [344, 25, 4, 0.56], [3985, 3, 11, 0.84], [22434, 3, 5, 0.56], [2365, 3, 6, 0.54], [2836, 3, 10, 0.45], [19330, 1, 4, 0.37], [23602, 10, 7, 0.36], [13256, 29, 4, 0.42], [19335, 2, 4, 0.36], [13114, 1, 6, 0.46], [1451, 7, 7, 0.31], [2099, 2, 4, 1.44], [19343, 2, 4, 0.4], [13257, 25, 4, 0.7], [13491, 7, 4, 0.91], [23040, 1, 4, 0.0], [80, 1, 4, 0.57], [19344, 2, 4, 0.4], [19376, 3, 4, 0.31], [13295, 3, 6, 0.58], [11902, 2, 4, 0.48], [3475, 2, 7, 0.41], [10149, 1, 4, 0.64], [23662, 2, 4, 0.79], [2821, 1, 4, 0.48], [473, 1, 4, 0.27], [23232, 3, 6, 0.44], [10538, 3, 6, 0.35], [3387, 1, 4, 0.82], [5647, 2, 4, 0.38], [12492, 3, 6, 0.45], [13041, 3, 6, 0.37], [13200, 10, 4, 2.13], [2934, 1, 4, 0.33], [12334, 2, 4, 0.4], [2695, 3, 6, 0.45], [3896, 25, 5, 0.65], [11212, 4, 4, 1.84], [2169, 3, 4, 0.45], [19332, 2, 4, 0.35], [382, 1, 4, 1.0], [19346, 2, 4, 0.4], [11773, 1, 4, 1.31], [10586, 3, 4, 0.41], [9621, 3, 6, 0.5], [23603, 10, 10, 0.3], [11565, 80, 6, 0.58], [11857, 1, 4, 0.67], [22437, 3, 9, 0.59], [3979, 3, 6, 0.84], [2367, 3, 6, 0.54], [19350, 2, 4, 0.4], [11178, 1, 4, 1.45], [11858, 1, 4, 0.67], [11634, 1, 4, 0.32], [19336, 2, 4, 0.32], [9288, 29, 4, 1.27], [20964, 3, 6, 1.15], [13398, 3, 4, 0.29], [334, 2, 4, 0.0], [3386, 1, 4, 1.15], [19361, 23, 4, 0.38], [2100, 2, 4, 0.51], [7007, 1, 4, 0.11], [2168, 3, 6, 0.85], [60, 1, 4, 0.56], [12609, 1, 4, 0.41], [5541, 1, 4, 0.34], [13274, 29, 7, 0.61], [23558, 3, 4, 0.55], [8923, 29, 7, 0.34], [5540, 1, 4, 0.33], [19366, 2, 4, 0.31], [1406, 2, 4, 0.47], [380, 2, 4, 1.25], [13273, 29, 4, 0.6], [21482, 7, 6, 0.84], [8756, 1, 6, 0.52], [21459, 7, 11, 1.0], [9207, 25, 4, 0.44], [2188, 2, 10, 0.35], [21481, 7, 4, 0.85], [2744, 3, 7, 0.51], [788, 2, 4, 0.33], [10181, 26, 7, 0.0], [22865, 7, 6, 0.69], [11269, 1, 38, 1.84], [13272, 29, 5, 0.62], [5110, 1, 4, 1.54], [10986, 2, 4, 0.41], [20937, 3, 4, 0.77], [21810, 1, 4, 0.0], [12241, 1, 4, 0.28], [19333, 2, 4, 0.34], [972, 1, 4, 0.62], [9153, 23, 6, 0.39], [2216, 1, 4, 0.87], [6556, 3, 4, 0.42], [12336, 2, 4, 0.42], [19968, 25, 4, 1.41], [23994, 29, 6, 0.57], [19969, 25, 4, 0.56], [204, 4, 4, 0.51], [23380, 29, 4, 0.36], [9208, 25, 6, 0.67], [23994, 25, 4, 0.56], [23600, 10, 4, 0.28], [9381, 1, 26, 0.44], [9182, 1, 4, 0.5], [13199, 23, 6, 2.15], [24130, 1, 4, 0.34], [8033, 2, 4, 0.35], [11942, 29, 6, 0.47], [12128, 1, 4, 0.3], [5453, 1, 7, 0.67], [1706, 25, 6, 0.75], [2417, 80, 4, 0.73], [22973, 1, 4, 0.37], [8284, 1, 4, 0.34], [512, 24, 4, 2.05], [942, 1, 4, 0.61], [8923, 25, 6, 0.34], [19374, 2, 4, 0.32], [12253, 3, 6, 0.28], [8155, 2, 4, 0.6], [8050, 2, 4, 0.4], [23246, 25, 4, 0.31], [1409, 16, 4, 0.46], [8907, 25, 7, 0.33], [22874, 3, 4, 0.56], [12508, 1, 6, 1.49], [6293, 1, 4, 0.28], [23546, 3, 6, 0.45], [13300, 3, 7, 0.44], [214, 1, 4, 0.35], [11213, 4, 4, 1.84], [11690, 1, 4, 0.32], [10609, 1, 8, 1.7], [8872, 1, 6, 0.41], [9489, 2, 4, 0.39], [12295, 4, 4, 0.77], [3987, 3, 7, 0.9], [10530, 29, 8, 0.81], [9530, 1, 8, 0.71], [8753, 1, 6, 0.51], [23248, 25, 4, 0.29], [22438, 3, 14, 0.39], [5939, 1, 7, 0.0], [22879, 3, 4, 0.57], [23599, 10, 7, 0.28], [8157, 29, 5, 1.15], [9382, 1, 6, 0.43], [10446, 1, 4, 0.35], [9803, 138, 4, 0.35], [19367, 2, 4, 0.34], [12040, 68, 4, 0.29], [11889, 2, 7, 2.17], [2362, 25, 4, 1.52], [11040, 1, 4, 0.67], [11322, 3, 4, 1.11], [10991, 1, 7, 1.87], [5654, 2, 4, 0.31], [21778, 2, 4, 0.0], [13024, 1, 4, 1.0], [21461, 7, 8, 1.0], [4926, 12, 4, 0.47], [8638, 3, 6, 0.57], [6023, 1, 4, 1.66], [9088, 25, 6, 0.46], [2287, 29, 4, 0.78], [4586, 1, 4, 0.36], [13007, 3, 4, 0.27], [23276, 1, 4, 0.73], [216, 4, 4, 0.56], [8157, 80, 4, 1.15], [19970, 25, 10, 0.5], [9148, 23, 6, 0.34], [10721, 29, 6, 0.46], [23538, 3, 6, 0.46], [9154, 23, 7, 0.36], [23235, 25, 6, 0.52], [2196, 2, 4, 0.0], [12028, 2, 4, 0.8], [5656, 2, 4, 0.35], [12630, 10, 4, 0.48], [22326, 1, 4, 0.36], [23541, 3, 4, 0.43], [5648, 2, 4, 0.32], [9910, 25, 7, 0.62], [4328, 1, 4, 0.32], [3558, 15, 4, 2.0], [12333, 2, 4, 0.41], [19338, 2, 4, 0.3], [21012, 2, 4, 0.66], [13397, 3, 4, 0.3], [6269, 23, 17, 0.0], [385, 1, 4, 0.97], [12577, 3, 4, 0.59], [5940, 1, 7, 0.0], [11328, 3, 4, 1.09], [5445, 23, 4, 0.56], [23234, 29, 4, 0.46], [1134, 1, 6, 1.28], [10720, 29, 6, 0.47], [11403, 1, 7, 0.0], [7886, 1, 4, 0.32], [22323, 1, 6, 0.35], [21319, 7, 10, 0.62], [9380, 1, 11, 0.44], [13025, 1, 4, 1.0], [21077, 10, 8, 0.43], [3388, 1, 4, 0.82], [11022, 3, 6, 1.11], [22871, 7, 6, 0.55], [10525, 1, 4, 0.0], [975, 3, 6, 0.3], [2418, 80, 4, 0.81], [10640, 3, 6, 0.51], [13015, 3, 4, 0.26], [21068, 10, 8, 0.42], [11687, 1, 4, 0.3], [23492, 3, 4, 0.3], [22876, 3, 4, 0.56], [3079, 3, 4, 0.53], [333, 2, 4, 0.0], [11916, 3, 9, 0.4], [8274, 1, 4, 0.37], [964, 1, 6, 0.36], [9113, 15, 4, 0.35], [23039, 1, 4, 0.0], [8895, 1, 4, 0.0], [12043, 1, 4, 0.52], [9122, 1, 4, 0.42], [11915, 1, 4, 0.38], [10987, 2, 4, 0.33], [23339, 3, 4, 0.32], [22408, 1, 4, 0.39], [9122, 15, 4, 0.42], [24126, 3, 4, 0.48], [1456, 3, 4, 0.57], [19340, 2, 4, 0.37], [23534, 3, 6, 0.6], [22407, 1, 4, 0.34], [10524, 80, 4, 0.81], [7204, 1, 4, 0.79], [21809, 1, 4, 0.0], [2188, 1, 4, 0.36], [23494, 3, 6, 0.3], [1451, 2, 6, 0.31], [22316, 1, 4, 0.6], [432, 1, 4, 0.61], [5446, 23, 4, 0.61], [5653, 2, 4, 0.32], [5538, 1, 4, 0.33], [11891, 3, 8, 0.65], [22038, 7, 8, 0.62], [2216, 15, 4, 0.86], [5020, 1, 4, 0.56], [11726, 29, 6, 0.4], [23491, 3, 4, 0.3], [23234, 25, 4, 0.46], [938, 1, 4, 0.0], [3904, 14, 4, 0.43], [23038, 1, 4, 0.0], [20191, 1, 7, 0.36], [14040, 1, 4, 0.32], [9129, 1, 4, 0.29], [11886, 1, 6, 0.54], [23493, 3, 5, 0.3], [1455, 3, 4, 0.51], [21808, 1, 4, 0.0], [6956, 25, 4, 0.67], [12294, 4, 4, 1.59], [8963, 1, 4, 0.54], [1803, 2, 4, 1.59], [6802, 3, 6, 0.59], [23231, 3, 4, 0.42], [19370, 2, 4, 0.31], [5649, 2, 4, 0.32], [2711, 3, 4, 0.38], [221, 4, 4, 0.78], [2505, 10, 7, 0.63], [3658, 1, 4, 0.64], [1988, 1, 4, 1.27], [21468, 7, 6, 0.56], [9138, 23, 5, 0.69], [20670, 1, 4, 0.6], [1163, 1, 4, 0.41], [7885, 1, 4, 0.32], [13008, 3, 4, 0.45], [21745, 2, 4, 0.0], [19360, 23, 6, 0.43], [11856, 1, 4, 0.67], [21088, 7, 7, 0.28], [6083, 3, 4, 0.38], [8363, 1, 4, 0.41], [9250, 3, 7, 0.58], [11325, 3, 4, 1.09], [948, 15, 4, 0.27], [10594, 3, 4, 0.59], [2269, 7, 9, 0.53], [4728, 1, 4, 0.44], [11636, 1, 4, 0.33], [2217, 16, 4, 0.96], [1260, 1, 4, 0.0], [6803, 3, 7, 0.59], [1457, 3, 4, 0.58], [192, 3, 11, 0.58], [12330, 2, 4, 0.38], [11485, 1, 8, 0.0], [590, 1, 4, 0.36], [1309, 23, 21, 0.22], [13, 1, 4, 0.57], [12921, 3, 7, 0.82], [1895, 1, 8, 0.0], [6628, 1, 6, 0.34], [186, 1, 4, 0.53], [23235, 29, 4, 0.52], [10170, 1, 4, 0.52], [23230, 3, 4, 0.44], [424, 1, 4, 0.0], [98, 1, 4, 0.0], [21463, 7, 4, 0.58], [21713, 1, 4, 0.37], [12239, 1, 4, 0.28], [9995, 29, 4, 0.36], [12433, 2, 4, 0.42], [10667, 3, 4, 0.4], [20249, 1, 6, 0.38], [21478, 7, 4, 0.67], [9154, 2, 4, 0.35], [440, 1, 4, 0.0], [6294, 1, 4, 0.34], [9148, 2, 4, 0.37], [19377, 3, 4, 0.3], [4033, 29, 6, 0.48], [11499, 1, 4, 0.0], [12623, 10, 4, 0.46], [19965, 29, 4, 0.4], [2271, 7, 7, 0.33], [2265, 7, 9, 0.76], [12637, 1, 4, 0.48], [19348, 2, 4, 0.39], [2717, 3, 4, 0.45], [2214, 1, 6, 0.44], [11450, 1, 4, 0.3], [13113, 1, 11, 0.47], [19968, 29, 4, 0.0], [2507, 2, 4, 0.23], [1511, 3, 6, 0.75], [23341, 3, 4, 0.32], [19985, 2, 4, 0.05], [3970, 2, 4, 1.63], [335, 1, 4, 0.74], [7202, 1, 4, 1.47], [12027, 2, 4, 0.8], [9910, 29, 6, 0.62], [23335, 14, 6, 0.71], [9065, 1, 4, 0.33], [790, 2, 6, 0.28], [23489, 3, 6, 1.79], [11163, 1, 32, 1.83], [10461, 3, 7, 1.64], [12638, 1, 4, 1.17], [22317, 1, 4, 0.6], [9530, 25, 4, 0.71], [8990, 29, 4, 0.77], [12257, 14, 4, 0.28], [22325, 1, 4, 0.39], [11510, 1, 4, 0.0], [11840, 1, 4, 0.45], [22440, 3, 6, 0.43], [13253, 29, 4, 0.45], [10668, 2, 4, 0.48], [12936, 3, 6, 0.8], [13489, 1, 4, 0.52], [11565, 29, 4, 0.59], [8927, 1, 4, 0.43], [19337, 2, 4, 0.38], [10717, 1, 4, 0.39], [9877, 16, 4, 0.59], [2537, 1, 4, 0.41], [1060, 1, 7, 0.0], [21474, 7, 6, 0.68], [9459, 1, 4, 0.59], [19365, 2, 4, 0.35], [19371, 2, 4, 0.34], [8907, 29, 4, 0.33], [8280, 1, 4, 0.0], [23533, 3, 6, 0.6], [8106, 1, 4, 0.55], [20920, 3, 6, 1.04], [3557, 15, 4, 0.46], [3476, 2, 4, 0.45], [22870, 7, 6, 0.57], [23529, 3, 6, 0.51], [12674, 1, 4, 0.46], [12513, 1, 4, 1.41], [12611, 1, 4, 0.38], [8254, 25, 4, 1.84], [22051, 10, 6, 0.89], [11897, 2, 4, 0.23], [19383, 1, 4, 0.52], [2050, 1, 8, 0.0], [3915, 15, 4, 0.29], [8023, 1, 4, 0.53], [6292, 1, 4, 0.33], [110, 1, 6, 0.0], [5435, 1, 4, 0.34], [1576, 1, 4, 0.72], [12167, 2, 4, 0.42], [13498, 1, 4, 0.0], [10906, 3, 6, 1.99], [23337, 3, 4, 1.79], [9963, 3, 4, 0.64], [2362, 29, 4, 0.0], [22569, 1, 4, 1.26], [22570, 1, 6, 0.76], [4068, 25, 4, 0.73], [9529, 1, 13, 0.37], [13270, 29, 4, 0.64], [858, 1, 4, 0.54], [19969, 29, 4, 0.56], [10716, 1, 10, 0.26], [22410, 1, 4, 0.42], [4967, 23, 7, 0.36], [19964, 29, 4, 0.7], [12062, 68, 4, 0.34], [976, 3, 4, 0.39], [10176, 29, 4, 0.69], [2214, 16, 4, 0.44], [23598, 10, 6, 0.26], [791, 2, 4, 0.29], [11885, 1, 4, 0.48], [12252, 3, 6, 0.28], [3549, 25, 6, 0.77], [1054, 2, 4, 0.34], [2225, 3, 4, 0.64], [217, 4, 4, 0.71], [9204, 1, 4, 0.0], [3495, 1, 4, 0.56], [20984, 1, 4, 1.71], [9208, 29, 4, 0.67], [10588, 3, 4, 0.46], [19369, 2, 4, 0.35], [12228, 2, 4, 1.49], [12645, 1, 7, 0.41], [10582, 3, 6, 0.63], [2404, 3, 4, 0.41], [22631, 3, 4, 0.39], [2203, 1, 6, 0.25], [11635, 1, 4, 0.3], [21082, 10, 8, 0.44], [3598, 15, 6, 0.3], [10428, 4, 4, 2.05], [12222, 3, 6, 0.36], [9956, 1, 6, 3.51], [4968, 23, 8, 0.54], [3994, 1, 4, 0.34], [12992, 1, 4, 0.51], [13014, 3, 4, 0.42], [9374, 5, 4, 1.68], [5652, 2, 6, 0.3], [10587, 3, 4, 0.42], [3071, 3, 4, 0.56], [12449, 1, 4, 0.42], [12434, 2, 4, 0.43], [13252, 29, 6, 0.5], [12220, 3, 4, 0.75], [2709, 17, 4, 0.62], [8156, 2, 4, 0.0], [13190, 2, 4, 0.32], [22364, 1, 4, 0.34], [11894, 2, 4, 0.48], [22566, 1, 4, 0.4], [12579, 3, 6, 0.57], [6627, 1, 6, 0.43], [12922, 3, 6, 0.54], [13012, 3, 4, 0.51], [2272, 7, 4, 0.31], [19684, 1, 4, 0.0], [8217, 25, 8, 0.45], [12612, 1, 4, 0.33], [9529, 25, 4, 0.38], [19372, 2, 4, 0.31], [2418, 29, 6, 0.81], [12258, 14, 4, 0.28], [94, 1, 4, 0.93], [962, 1, 6, 0.37], [19373, 2, 4, 0.36], [1447, 1, 4, 0.5], [12436, 2, 4, 0.49], [5406, 2, 4, 0.38], [2217, 15, 4, 0.97], [12578, 3, 6, 0.57], [12536, 2, 4, 0.62], [11641, 1, 4, 0.58], [4203, 1, 4, 0.48], [97, 1, 4, 0.0], [9996, 29, 4, 0.92], [13191, 2, 4, 0.34], [23238, 25, 4, 0.36], [9623, 3, 4, 0.45], [12256, 14, 4, 0.31], [3961, 1, 4, 0.4], [12026, 2, 6, 0.8], [72, 1, 4, 0.44], [20935, 3, 6, 0.79], [10175, 1, 4, 1.08], [19966, 29, 6, 0.41], [12935, 1, 4, 0.81], [9</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 33, 1.31], [130, 1, 8, 0.33], [305, 2, 12, 0.68], [2778, 2, 15, 0.74], [144, 2, 10, 0.91], [205, 2, 8, 0.19], [8648, 2, 11, 0.82], [326, 2, 12, 0.36], [5493, 2, 11, 0.58], [615, 2, 12, 0.54], [8915, 2, 12, 0.0], [2327, 2, 11, 0.75], [151, 1, 12, 0.36], [8650, 2, 11, 0.82], [589, 2, 11, 0.0], [616, 2, 12, 0.55], [146, 2, 8, 0.9], [206, 2, 7, 0.19], [593, 2, 17, 0.56], [88, 10, 27, 0.6], [2049, 3, 16, 0.3], [1504, 2, 15, 0.99], [3893, 1, 8, 0.3], [2328, 2, 7, 0.75], [141, 2, 10, 0.59], [9507, 3, 6, 0.21], [7004, 1, 8, 0.4], [143, 2, 10, 0.51], [10, 2, 11, 0.38], [3889, 1, 7, 0.24], [3891, 1, 7, 0.29], [19925, 2, 8, 0.96], [145, 2, 8, 0.62], [248, 1, 7, 0.49], [378, 2, 7, 0.81], [159, 3, 11, 0.31], [2775, 2, 7, 0.74], [12224, 1, 8, 0.35], [8938, 2, 7, 0.0], [434, 2, 8, 0.37], [6936, 2, 15, 1.31], [5491, 2, 6, 0.56], [3840, 1, 11, 0.34], [7036, 1, 10, 0.97], [8649, 2, 10, 0.82], [2055, 3, 8, 0.09], [362, 2, 8, 0.58], [990, 2, 8, 0.63], [997, 2, 7, 0.0], [2050, 3, 9, 0.09], [10993, 2, 13, 0.44], [1446, 2, 6, 0.0], [624, 2, 8, 0.56], [11685, 2, 17, 1.05], [996, 2, 7, 0.0], [75, 2, 8, 0.0], [62, 3, 13, 0.81], [2057, 3, 9, 0.09], [61, 3, 7, 0.49], [2054, 3, 9, 0.09], [2497, 2, 8, 0.99], [2776, 2, 7, 0.74], [998, 2, 6, 0.0], [10574, 3, 11, 0.35], [8853, 2, 11, 1.31], [957, 2, 7, 0.48], [8939, 2, 4, 0.0], [13028, 3, 8, 0.88], [8672, 2, 12, 0.72], [583, 2, 6, 0.32], [5208, 3, 11, 0.26], [7084, 3, 4, 0.45], [1006, 2, 7, 0.44], [7005, 1, 4, 0.4], [59, 3, 11, 0.21], [346, 3, 6, 0.52], [1429, 2, 4, 0.0], [12269, 2, 7, 0.57], [9760, 29, 10, 0.0], [1007, 2, 11, 0.24], [12225, 1, 4, 0.34], [11683, 2, 15, 0.95], [5165, 1, 15, 0.41], [12870, 1, 8, 1.0], [20927, 1, 4, 0.4], [361, 2, 7, 0.59], [11681, 2, 13, 1.12], [2991, 3, 6, 0.84], [11737, 2, 7, 0.34], [7885, 4, 6, 0.3], [3, 2, 10, 0.0], [140, 2, 7, 0.34], [972, 3, 8, 0.58], [523, 2, 4, 0.59], [956, 2, 6, 0.41], [11811, 1, 7, 0.46], [94, 4, 4, 0.78], [5946, 1, 4, 0.35], [6497, 1, 10, 0.0], [214, 3, 15, 0.37], [1126, 2, 7, 0.41], [33, 1, 4, 0.3], [2912, 1, 15, 0.4], [411, 2, 4, 0.19], [22179, 1, 4, 0.53], [417, 2, 7, 0.59], [1492, 1, 7, 0.0], [76, 2, 4, 0.51], [950, 1, 11, 0.66], [5165, 2, 16, 0.41], [995, 2, 4, 0.43], [12271, 2, 6, 0.57], [142, 2, 7, 0.59], [7567, 3, 4, 0.54], [435, 2, 4, 0.48], [410, 1, 4, 0.66], [336, 15, 4, 0.39], [1413, 15, 4, 0.41], [11739, 2, 4, 0.57], [1886, 2, 10, 2.26], [96, 11, 25, 0.81], [21793, 1, 11, 1.78], [346, 1, 7, 0.51], [2774, 2, 7, 1.48], [9784, 1, 4, 0.57], [74, 1, 4, 1.1], [22316, 3, 7, 0.6], [7886, 4, 6, 0.35], [11404, 2, 8, 0.36], [14037, 3, 8, 0.26], [9372, 1, 11, 0.01], [35, 1, 4, 0.45], [11490, 1, 4, 0.76], [21704, 3, 24, 0.37], [11767, 1, 4, 0.0], [6158, 2, 9, 0.42], [11953, 1, 8, 0.77], [21798, 1, 6, 0.44], [5209, 3, 8, 0.26], [13928, 1, 4, 0.59], [20252, 2, 5, 0.68], [37, 1, 4, 0.45], [12229, 2, 6, 0.48], [9081, 3, 16, 0.77], [2912, 2, 15, 0.4], [10149, 3, 30, 0.66], [10631, 2, 7, 0.97], [7887, 4, 4, 0.38], [1163, 3, 7, 0.3], [955, 2, 15, 0.93], [152, 21, 4, 0.54], [159, 1, 11, 0.29], [8898, 3, 7, 1.6], [161, 3, 11, 0.69], [432, 3, 6, 0.46], [11808, 1, 6, 0.9], [9491, 21, 15, 0.43], [13962, 1, 4, 0.52], [1005, 2, 4, 0.33], [12721, 2, 8, 0.77], [3670, 2, 7, 1.03], [34, 1, 4, 0.45], [11769, 1, 4, 0.0], [3980, 4, 8, 0.69], [11179, 1, 6, 0.48], [11489, 1, 4, 0.76], [39, 1, 4, 0.45], [1124, 2, 10, 0.55], [5490, 2, 4, 0.47], [345, 3, 6, 0.8], [2424, 80, 7, 0.9], [83, 2, 4, 0.4], [12212, 29, 7, 0.48], [12369, 3, 13, 1.35], [1656, 2, 6, 0.27], [11772, 1, 10, 1.11], [10407, 10, 12, 1.8], [22317, 3, 7, 0.6], [9690, 1, 4, 0.66], [4253, 1, 6, 0.66], [2104, 3, 12, 0.64], [11770, 1, 8, 0.2], [8943, 3, 4, 0.56], [13964, 1, 4, 0.51], [8944, 3, 4, 0.37], [21712, 3, 21, 0.5], [10408, 10, 11, 0.55], [201, 3, 6, 0.8], [972, 1, 4, 0.56], [6496, 1, 6, 0.34], [413, 1, 4, 0.64], [105, 3, 4, 0.12], [3495, 3, 28, 0.55], [13967, 1, 4, 0.5], [11952, 1, 7, 0.83], [229, 1, 4, 0.75], [38, 1, 4, 0.45], [8676, 2, 7, 0.72], [71, 15, 4, 0.31], [11085, 2, 8, 0.47], [8635, 3, 6, 0.68], [335, 3, 15, 0.42], [11039, 2, 7, 0.96], [20256, 2, 4, 0.61], [412, 1, 4, 0.64], [13034, 3, 7, 1.07], [22247, 2, 7, 0.77], [10410, 10, 10, 1.79], [8274, 3, 6, 0.68], [307, 2, 8, 0.69], [10411, 10, 11, 0.57], [6805, 1, 6, 0.56], [436, 2, 4, 0.44], [440, 3, 4, 2.06], [8120, 3, 4, 0.34], [584, 2, 4, 0.52], [11812, 1, 4, 0.43], [418, 2, 4, 0.58], [82, 2, 4, 0.41], [1414, 15, 4, 0.41], [8286, 2, 8, 0.34], [159, 16, 4, 0.29], [270, 3, 4, 0.5], [3982, 3, 18, 0.84], [114, 3, 4, 0.12], [1654, 2, 6, 0.27], [1339, 3, 18, 0.37], [389, 4, 4, 0.72], [20498, 3, 7, 0.72], [21269, 3, 6, 1.98], [5584, 3, 4, 1.7], [3981, 3, 20, 0.87], [8121, 3, 6, 0.28], [10936, 2, 4, 1.03], [9, 1, 4, 0.38], [2805, 137, 11, 1.29], [1895, 3, 6, 0.85], [1274, 1, 6, 0.68], [12223, 1, 4, 0.51], [2423, 80, 6, 0.72], [2424, 29, 7, 0.9], [590, 15, 4, 0.36], [11504, 2, 4, 0.58], [9691, 1, 4, 0.66], [10388, 2, 4, 0.87], [110, 4, 4, 0.7], [19931, 1, 6, 0.45], [12964, 3, 7, 0.47], [7558, 3, 4, 0.2], [6494, 1, 5, 0.0], [20649, 1, 4, 0.67], [14041, 3, 6, 0.38], [2436, 4, 4, 2.93], [11116, 1, 6, 0.29], [3429, 15, 4, 0.39], [3975, 4, 7, 0.69], [12764, 2, 8, 0.56], [788, 2, 4, 0.28], [21060, 1, 4, 0.52], [98, 11, 23, 0.0], [11236, 2, 7, 0.49], [3577, 25, 7, 0.52], [79, 1, 4, 0.44], [286, 3, 4, 0.76], [5005, 3, 11, 0.44], [11235, 2, 7, 1.31], [11814, 1, 4, 0.42], [3892, 1, 4, 0.55], [5076, 1, 10, 0.89], [9082, 3, 36, 0.95], [1490, 1, 10, 0.79], [823, 1, 7, 0.81], [3576, 25, 6, 0.6], [11089, 1, 6, 0.86], [958, 2, 4, 0.51], [11510, 3, 7, 0.59], [789, 2, 6, 0.29], [12357, 3, 6, 1.25], [126, 2, 4, 0.38], [84, 2, 4, 0.43], [21686, 3, 8, 1.27], [11813, 1, 4, 0.61], [11954, 1, 4, 0.0], [3900, 3, 4, 0.36], [12720, 2, 5, 0.77], [36, 1, 4, 0.45], [20486, 3, 6, 1.03], [12270, 2, 4, 0.58], [414, 1, 4, 0.64], [9065, 2, 6, 0.26], [3674, 2, 6, 0.79], [9126, 1, 7, 0.39], [8675, 2, 7, 0.72], [202, 2, 4, 0.21], [2331, 1, 4, 0.68], [13893, 2, 6, 0.93], [1548, 1, 4, 0.59], [10386, 2, 4, 0.87], [12355, 3, 6, 1.31], [97, 11, 24, 0.48], [13110, 3, 8, 1.35], [10939, 2, 4, 1.03], [45, 2, 7, 1.89], [7708, 2, 8, 0.58], [21683, 3, 6, 0.79], [10940, 2, 4, 1.03], [415, 1, 4, 0.64], [7007, 1, 4, 0.4], [3576, 29, 7, 0.6], [1523, 1, 4, 1.03], [11087, 2, 6, 0.47], [21713, 3, 15, 0.35], [8283, 2, 6, 0.36], [8659, 1, 6, 0.18], [8356, 1, 4, 0.06], [10941, 2, 4, 1.03], [11671, 1, 10, 0.66], [13928, 2, 7, 0.6], [10406, 10, 11, 0.66], [10633, 2, 4, 0.97], [9069, 1, 4, 1.24], [21059, 1, 4, 0.53], [8945, 3, 6, 1.73], [1661, 3, 4, 0.54], [5005, 1, 7, 0.44], [10093, 3, 16, 0.88], [3577, 29, 6, 0.52], [10172, 3, 10, 0.42], [2438, 2, 8, 0.45], [12358, 3, 6, 1.23], [4176, 4, 7, 0.69], [3456, 3, 4, 0.44], [3478, 2, 7, 1.15], [8673, 2, 4, 0.86], [12338, 29, 6, 0.41], [11150, 2, 8, 0.34], [12362, 3, 6, 1.31], [11158, 1, 13, 0.83], [1699, 3, 4, 0.54], [2878, 1, 4, 0.93], [11687, 2, 6, 0.23], [3575, 25, 6, 0.63], [8897, 3, 6, 1.59], [2108, 3, 10, 0.35], [9204, 3, 6, 0.15], [11160, 1, 6, 0.81], [399, 24, 4, 0.97], [437, 3, 4, 0.5], [70, 16, 4, 0.41], [1243, 2, 7, 0.88], [9827, 3, 4, 0.55], [10409, 10, 11, 0.64], [6097, 29, 6, 0.89], [6097, 80, 4, 0.89], [1667, 3, 4, 0.54], [10514, 3, 6, 0.58], [93, 11, 20, 0.74], [8285, 2, 6, 0.4], [13433, 2, 7, 0.72], [20498, 1, 4, 0.0], [13244, 1, 13, 0.38], [1050, 2, 4, 0.33], [19583, 3, 6, 0.79], [491, 10, 11, 0.82], [1049, 2, 4, 0.33], [3894, 1, 4, 0.7], [7120, 3, 4, 0.45], [11088, 2, 6, 0.47], [6952, 1, 7, 0.83], [1277, 1, 7, 0.72], [21706, 3, 17, 0.32], [2109, 3, 13, 0.44], [12241, 3, 5, 0.28], [11426, 25, 6, 0.55], [19971, 3, 6, 0.6], [4001, 3, 12, 0.84], [12979, 25, 13, 0.59], [11674, 1, 4, 0.0], [2049, 1, 4, 0.3], [3337, 1, 4, 0.62], [1300, 3, 4, 0.73], [10148, 1, 7, 0.27], [947, 15, 4, 0.52], [856, 1, 4, 0.42], [13965, 1, 4, 0.48], [12356, 3, 6, 1.35], [11936, 2, 4, 1.03], [9787, 1, 4, 0.59], [12526, 2, 6, 0.22], [1309, 1, 4, 0.56], [10937, 2, 4, 1.03], [7182, 1, 4, 0.66], [10537, 3, 6, 0.35], [8677, 3, 6, 1.05], [7360, 3, 4, 0.46], [2423, 29, 6, 0.73], [7705, 2, 6, 0.58], [5007, 3, 8, 0.45], [22318, 3, 6, 0.82], [11738, 2, 4, 0.58], [2859, 15, 4, 0.35], [12501, 1, 4, 0.0], [11689, 2, 6, 0.23], [942, 3, 4, 0.59], [12373, 1, 8, 0.2], [11183, 1, 4, 1.25], [10536, 3, 7, 0.0], [9785, 1, 4, 0.57], [12417, 3, 6, 0.7], [9971, 2, 4, 0.68], [13263, 29, 4, 0.66], [3048, 3, 6, 1.14], [8600, 1, 4, 0.4], [12361, 3, 6, 1.25], [973, 3, 7, 0.49], [2738, 3, 4, 0.88], [11150, 1, 4, 0.34], [10632, 2, 4, 0.97], [66, 15, 4, 0.38], [21687, 3, 6, 1.27], [12653, 1, 10, 0.38], [11690, 2, 6, 0.24], [11793, 2, 7, 0.27], [12368, 3, 6, 1.27], [308, 1, 6, 1.32], [2336, 3, 8, 0.48], [186, 3, 13, 0.61], [9854, 1, 4, 1.01], [9124, 1, 6, 0.39], [490, 1, 12, 0.42], [11084, 2, 6, 0.47], [5435, 1, 4, 0.61], [7122, 3, 4, 0.45], [6864, 1, 4, 0.56], [147, 1, 4, 0.79], [1080, 3, 4, 2.62], [10721, 29, 7, 0.39], [10385, 2, 4, 0.4], [11161, 1, 7, 0.68], [7119, 3, 4, 0.45], [8104, 1, 6, 0.0], [1519, 3, 20, 0.36], [974, 3, 6, 0.45], [11182, 1, 4, 1.41], [9358, 1, 6, 0.0], [1413, 16, 4, 0.42], [20556, 2, 4, 0.59], [11844, 2, 6, 0.93], [3723, 25, 4, 0.88], [5434, 1, 4, 0.57], [3983, 4, 5, 0.69], [12053, 2, 7, 0.76], [9797, 3, 11, 0.67], [10630, 2, 4, 0.97], [13035, 3, 7, 1.04], [11234, 2, 7, 0.58], [470, 1, 4, 0.21], [19924, 2, 10, 0.89], [9783, 1, 4, 0.62], [289, 3, 4, 0.7], [3334, 5, 6, 1.0], [9786, 1, 4, 0.57], [3575, 29, 6, 0.63], [2108, 1, 4, 0.36], [4354, 1, 4, 0.93], [2422, 80, 6, 0.82], [10413, 10, 7, 0.98], [12646, 1, 6, 0.97], [19581, 3, 6, 0.79], [9796, 3, 12, 0.67], [10408, 1, 6, 0.52], [2991, 1, 7, 0.84], [409, 1, 4, 0.49], [2322, 2, 4, 0.2], [21705, 3, 14, 0.82], [23961, 3, 4, 0.57], [948, 15, 4, 0.34], [11717, 3, 6, 1.71], [3673, 2, 4, 1.04], [9965, 2, 4, 0.68], [18964, 1, 4, 0.56], [949, 10, 8, 0.14], [10780, 10, 6, 1.65], [3430, 15, 4, 0.61], [10414, 10, 9, 0.39], [4232, 80, 6, 0.53], [416, 1, 4, 0.64], [8927, 10, 14, 0.29], [632, 11, 23, 0.0], [13023, 3, 9, 0.69], [11184, 1, 4, 1.22], [12010, 3, 4, 0.0], [13264, 29, 6, 0.62], [21697, 3, 4, 0.57], [8284, 2, 6, 0.37], [11719, 3, 9, 2.14], [10407, 1, 4, 0.0], [2854, 21, 12, 0.46], [7573, 1, 9, 0.63], [3059, 3, 4, 0.93], [439, 1, 4, 0.63], [3976, 3, 16, 0.87], [4076, 3, 4, 0.93], [22570, 1, 6, 0.85], [9828, 3, 4, 0.56], [11586, 1, 5, 0.81], [4175, 3, 16, 0.87], [13260, 29, 4, 0.71], [8674, 2, 5, 0.72], [3979, 3, 13, 0.84], [2703, 3, 5, 0.67], [10825, 21, 13, 0.62], [11491, 2, 4, 0.58], [10124, 1, 11, 0.55], [11485, 24, 4, 1.2], [6269, 23, 16, 0.53], [5585, 3, 4, 1.66], [10720, 29, 8, 0.42], [12417, 1, 4, 0.71], [12363, 3, 6, 1.23], [10581, 3, 8, 1.22], [1575, 1, 4, 0.63], [19047, 3, 4, 0.57], [12059, 3, 7, 0.82], [12661, 1, 4, 2.21], [1668, 1, 4, 0.59], [11288, 2, 4, 2.24], [11887, 2, 6, 0.48], [6728, 1, 4, 0.53], [12367, 3, 6, 1.26], [1087, 1, 4, 0.58], [12647, 1, 4, 0.96], [11425, 25, 6, 0.53], [2528, 29, 4, 0.47], [11930, 1, 4, 1.19], [1744, 1, 4, 0.47], [10411, 1, 4, 0.54], [20486, 1, 4, 0.0], [991, 2, 4, 0.55], [19972, 3, 6, 0.61], [66, 16, 4, 0.38], [11625, 29, 4, 0.4], [10410, 1, 4, 0.0], [10254, 1, 4, 0.96], [382, 1, 7, 1.0], [11081, 3, 4, 0.49], [10516, 3, 6, 0.59], [21699, 3, 10, 0.57], [12235, 3, 4, 1.25], [3934, 5, 19, 0.43], [10720, 80, 5, 0.42], [10387, 2, 4, 0.87], [10669, 3, 4, 0.52], [4372, 10, 11, 0.65], [7457, 3, 8, 0.42], [21683, 1, 4, 0.0], [9945, 3, 7, 0.6], [9186, 29, 4, 0.4], [13107, 3, 6, 2.08], [9507, 1, 4, 0.21], [424, 11, 13, 0.99], [7704, 2, 6, 0.58], [22968, 1, 4, 0.43], [12418, 3, 7, 0.7], [12722, 2, 6, 0.77], [71, 16, 4, 0.32], [12662, 1, 4, 0.39], [21789, 2, 6, 0.36], [2879, 1, 4, 0.48], [13033, 3, 6, 1.07], [6266, 23, 15, 0.53], [9964, 2, 4, 0.68], [2368, 3, 6, 0.62], [590, 16, 4, 0.35], [11180, 1, 4, 0.48], [1413, 1, 4, 0.42], [8756, 2, 8, 0.5], [790, 2, 4, 0.28], [11426, 29, 4, 0.56], [12058, 3, 4, 0.82], [13243, 1, 11, 0.41], [10668, 3, 4, 0.55], [11164, 1, 8, 0.75], [3341, 3, 4, 1.04], [11967, 1, 4, 0.38], [10461, 3, 6, 0.55], [5769, 3, 11, 0.0], [12923, 1, 4, 0.3], [21781, 2, 4, 0.32], [161, 1, 5, 0.69], [5343, 15, 4, 0.52], [3910, 7, 11, 0.65], [3909, 7, 12, 0.65], [5128, 1, 4, 0.48], [3338, 1, 4, 0.42], [11633, 1, 6, 0.35], [107, 7, 8, 0.62], [10521, 3, 6, 0.59], [13498, 3, 6, 1.24], [12621, 1, 4, 0.72], [2109, 1, 7, 0.44], [12304, 1, 6, 0.94], [11718, 3, 6, 1.7], [560, 1, 4, 1.06], [13258, 29, 11, 0.72], [12924, 1, 4, 0.32], [148, 1, 4, 0.79], [2103, 15, 4, 0.4], [12236, 3, 7, 0.29], [23611, 3, 6, 0.73], [1801, 1, 4, 0.37], [10181, 26, 12, 0.0], [21703, 3, 4, 1.04], [9494, 1, 7, 0.18], [1604, 68, 4, 0.62], [4203, 1, 4, 0.42], [944, 15, 4, 0.36], [20650, 1, 4, 0.72], [3047, 3, 5, 1.08], [1091, 1, 4, 0.38], [10540, 3, 4, 0.36], [13104, 3, 6, 2.07], [938, 3, 6, 0.59], [3391, 1, 4, 1.01], [22330, 3, 4, 0.87], [220, 4, 4, 1.11], [20555, 2, 4, 0.6], [1301, 3, 4, 0.88], [215, 4, 4, 1.04], [7724, 3, 4, 1.09], [9068, 1, 4, 1.28], [12234, 3, 4, 1.25], [6359, 10, 12, 0.35], [2422, 29, 4, 0.81], [9841, 25, 12, 0.41], [13259, 29, 12, 0.0], [10721, 80, 6, 0.38], [21809, 1, 4, 0.0], [336, 16, 4, 0.39], [21700, 3, 4, 1.06], [1620, 1, 4, 0.43], [13244, 2, 10, 0.37], [2335, 3, 4, 0.53], [1185, 3, 4, 1.06], [11618, 1, 4, 0.58], [13198, 29, 4, 0.62], [21807, 1, 4, 0.0], [11427, 2, 6, 0.3], [858, 1, 4, 0.48], [5939, 3, 4, 0.44], [1339, 1, 4, 0.35], [13274, 29, 7, 0.7], [11306, 2, 4, 1.24], [5020, 23, 18, 0.48], [11450, 2, 4, 0.32], [20969, 3, 8, 1.15], [11885, 2, 6, 0.49], [12365, 3, 6, 1.03], [1622, 1, 20, 0.27], [5730, 2, 4, 0.31], [216, 4, 4, 0.46], [19883, 1, 4, 0.32], [12360, 3, 6, 1.22], [3442, 29, 10, 0.7], [12055, 2, 7, 0.76], [12791, 2, 10, 0.42], [11587, 1, 6, 0.92], [11726, 29, 5, 0.4], [10816, 3, 6, 1.99], [292, 3, 6, 0.69], [3722, 25, 4, 0.39], [21783, 2, 4, 0.33], [2821, 3, 11, 0.66], [12979, 1, 4, 0.57], [12057, 2, 6, 0.76], [1414, 16, 4, 0.42], [21745, 2, 4, 0.0], [9840, 25, 10, 0.41], [13108, 3, 7, 2.14], [563, 2, 4, 0.32], [1853, 1, 4, 0.52], [7250, 3, 4, 0.31], [12594, 7, 4, 0.28], [3475, 2, 4, 0.59], [8896, 1, 4, 1.06], [8753, 2, 7, 0.5], [11794, 2, 4, 0.3], [1125, 2, 7, 0.0], [9355, 1, 4, 0.55], [11495, 1, 4, 0.57], [11931, 1, 4, 1.2], [12430, 3, 6, 0.7], [107, 2, 7, 0.63], [791, 2, 4, 0.29], [1406, 25, 4, 0.44], [3143, 3, 4, 0.88], [12614, 1, 4, 0.54], [6267, 23, 14, 0.53], [23032, 3, 7, 0.59], [1024, 1, 4, 0.34], [13266, 29, 6, 0.6], [9149, 23, 7, 0.34], [1683, 1, 4, 0.53], [5340, 23, 9, 0.4], [3230, 1, 4, 0.5], [3278, 29, 7, 0.75], [12054, 2, 5, 0.76], [12764, 1, 4, 0.54], [8636, 3, 8, 1.27], [963, 3, 4, 0.7], [12497, 3, 6, 0.52], [11157, 11, 8, 0.33], [21691, 3, 6, 1.35], [12706, 23, 11, 0.0], [21476, 7, 7, 0.88], [21468, 7, 6, 0.56], [247, 1, 4, 0.6], [209, 3, 4, 0.86], [11181, 1, 4, 1.01], [95, 3, 30, 1.93], [11402, 1, 4, 0.01], [8926, 1, 6, 0.0], [21694, 3, 7, 1.35], [23960, 3, 4, 0.69], [22920, 3, 6, 0.7], [11304, 2, 4, 2.24], [11425, 29, 4, 0.53], [12912, 3, 4, 0.32], [7703, 2, 6, 0.58], [8945, 1, 7, 0.0], [471, 1, 4, 0.31], [4032, 29, 8, 0.71], [10397, 3, 4, 0.71], [12663, 1, 4, 0.29], [7457, 1, 4, 0.43], [5341, 15, 4, 0.55], [10719, 80, 6, 0.52], [1059, 3, 4, 1.05], [13273, 29, 4, 0.61], [10609, 1, 7, 0.8], [70, 1, 4, 0.4], [13293, 3, 6, 0.71], [12656, 1, 4, 0.75], [5734, 2, 4, 0.31], [21463, 7, 6, 0.58], [10459, 3, 6, 0.55], [12489, 1, 4, 0.24], [3610, 24, 4, 1.15], [936, 3, 6, 0.25], [5343, 1, 4, 0.53], [5976, 1, 5, 0.17], [12369, 1, 7, 0.0], [332, 2, 4, 0.21], [11527, 10, 9, 0.3], [10147, 1, 6, 0.33], [21692, 3, 6, 1.02], [10272, 3, 6, 0.73], [5453, 1, 4, 0.74], [1139, 3, 4, 0.32], [1851, 1, 4, 0.29], [13491, 7, 4, 0.91], [7707, 2, 4, 0.58], [13106, 3, 6, 2.07], [1703, 2, 10, 1.17], [3988, 4, 4, 0.78], [21317, 3, 4, 0.34], [3088, 1, 4, 0.31], [11494, 1, 4, 0.61], [2369, 3, 6, 0.78], [4030, 29, 4, 0.34], [10460, 3, 6, 0.55], [4586, 10, 19, 0.39], [14017, 3, 4, 0.0], [2104, 1, 4, 0.63], [9138, 2, 4, 0.66], [11886, 2, 6, 0.55], [13324, 3, 7, 0.42], [20956, 7, 7, 0.62], [5342, 23, 9, 0.38], [8059, 3, 6, 0.91], [8557, 3, 4, 0.7], [10994, 2, 6, 0.46], [11159, 1, 10, 0.77], [5343, 16, 4, 0.53], [11710, 3, 8, 0.44], [8599, 1, 4, 0.49], [11435, 2, 4, 0.37], [10273, 3, 7, 0.58], [12913, 3, 4, 0.3], [1120, 3, 8, 0.36], [2695, 3, 10, 0.5], [23276, 3, 6, 0.79], [11644, 1, 4, 0.64], [19582, 3, 6, 0.79], [3899, 3, 4, 0.48], [19687, 1, 4, 0.68], [5152, 2, 6, 0.72], [4327, 1, 4, 0.27], [6098, 29, 4, 0.71], [2538, 1, 4, 0.0], [13105, 3, 6, 2.06], [3257, 4, 4, 0.45], [23031, 3, 6, 0.61], [6489, 11, 21, 1.01], [3986, 4, 4, 0.7], [2985, 3, 4, 0.6], [23040, 10, 8, 1.85], [407, 3, 6, 1.06], [13025, 3, 6, 0.97], [10815, 3, 7, 2.14], [3984, 3, 12, 0.87], [10639, 2, 4, 0.97], [13270, 29, 8, 0.66], [10412, 10, 7, 0.39], [2537, 1, 4, 0.39], [975, 3, 4, 0.52], [12871, 1, 7, 0.24], [2492, 1, 4, 0.54], [21810, 1, 4, 0.0], [3896, 29, 6, 0.65], [11092, 1, 4, 0.29], [10462, 3, 6, 0.55], [688, 3, 4, 0.42], [9967, 2, 4, 0.68], [11080, 3, 4, 1.56], [22877, 7, 4, 0.57], [2013, 2, 6, 1.08], [6098, 80, 4, 0.71], [21316, 3, 4, 0.34], [7629, 1, 4, 0.67], [3664, 5, 11, 0.54], [3104, 1, 4, 0.97], [9491, 1, 4, 0.38], [10172, 1, 7, 0.42], [448, 1, 4, 0.48], [10531, 14, 11, 0.5], [10455, 29, 4, 0.0], [5940, 3, 4, 0.42], [405, 3, 6, 1.06], [1515, 1, 4, 0.29], [12980, 25, 11, 0.42], [13024, 3, 7, 0.97], [11773, 1, 4, 0.44], [12935, 3, 6, 0.77], [21480, 7, 6, 1.01], [11156, 11, 7, 0.32], [964, 15, 4, 0.35], [12496, 3, 4, 0.51], [3994, 1, 4, 0.61], [13243, 2, 10, 0.4], [8234, 1, 4, 0.7], [5452, 1, 4, 0.48], [7324, 1, 4, 0.44], [11961, 1, 4, 0.42], [1701, 2, 6, 0.87], [22922, 3, 6, 0.79], [2105, 3, 11, 0.49], [2161, 1, 4, 0.51], [12508, 1, 4, 0.18], [11104, 3, 4, 1.33], [10176, 29, 4, 0.4], [3961, 1, 4, 0.61], [8637, 3, 8, 1.38], [19331, 2, 4, 0.37], [1409, 15, 4, 0.36], [9613, 1, 4, 0.5], [22921, 3, 4, 0.79], [10083, 23, 10, 0.44], [12654, 1, 4, 0.75], [3392, 1, 4, 1.01], [19878, 1, 4, 0.32], [13294, 3, 4, 0.71], [11152, 11, 7, 0.37], [2438, 1, 4, 0.45], [23028, 3, 6, 0.61], [1648, 1, 4, 1.03], [14, 1, 4, 0.36], [1743, 1, 4, 0.47], [12700, 3, 6, 1.35], [66, 1, 6, 0.38], [11775, 1, 4, 0.47], [109, 4, 4, 0.67], [9829, 3, 4, 0.38], [21689, 3, 6, 1.35], [1742, 1, 4, 0.5], [12240, 14, 4, 0.27], [21474, 7, 4, 0.68], [1052, 2, 4, 0.51], [10525, 3, 6, 0.59], [11410, 29, 6, 0.4], [11420, 3, 4, 0.49], [515, 24, 4, 0.7], [4329, 3, 8, 0.41], [13109, 3, 7, 2.09], [8089, 1, 7, 0.82], [1120, 1, 6, 0.37], [8754, 2, 8, 0.44], [14018, 3, 4, 0.0], [3049, 3, 4, 0.97], [60, 3, 10, 0.33], [3915, 16, 4, 0.29], [1432, 25, 4, 0.0], [6360, 10, 10, 0.35], [11846, 3, 4, 0.59], [10719, 29, 5, 0.52], [12239, 3, 4, 0.26], [12791, 1, 6, 0.44], [13325, 3, 4, 0.5], [524, 1, 4, 0.64], [21709, 3, 13, 0.44], [8968, 1, 4, 0.0], [13258, 25, 6, 0.72], [3340, 3, 4, 1.35], [20259, 2, 4, 0.49], [13036, 3, 6, 1.15], [5812, 3, 6, 0.4], [7191, 1, 4, 1.1], [3386, 1, 4, 1.06], [3987, 3, 10, 0.9], [10670, 3, 4, 0.48], [10906, 3, 15, 0.39], [7362, 3, 4, 0.43], [11154, 11, 10, 0.33], [3016, 68, 4, 0.97], [1406, 2, 4, 0.44], [8355, 1, 4, 0.06], [392, 4, 4, 0.72], [3985, 3, 12, 0.84], [20255, 2, 4, 0.75], [11848, 1, 4, 0.48], [9409, 29, 7, 0.0], [5646, 2, 4, 0.44], [12249, 14, 4, 0.27], [11528, 10, 8, 0.3], [22571, 1, 4, 0.17], [20966, 3, 6, 1.15], [3258, 7, 8, 0.68], [4222, 4, 4, 0.93], [3896, 25, 4, 0.65], [11722, 3, 4, 2.28], [12917, 3, 4, 0.32], [19583, 1, 4, 0.0], [10580, 3, 6, 1.72], [10275, 3, 4, 0.49], [72, 1, 4, 0.57], [11721, 3, 6, 2.14], [4232, 29, 4, 0.54], [9374, 5, 8, 0.93], [11085, 1, 4, 0.45], [10406, 1, 4, 0.61], [11634, 1, 4, 0.32], [6575, 3, 4, 0.92], [11529, 10, 8, 0.3], [7358, 3, 4, 0.49], [12637, 1, 4, 0.59], [23248, 25, 4, 0.32], [3021, 68, 4, 0.43], [1514, 1, 4, 0.34], [7706, 2, 4, 0.58], [1511, 3, 8, 0.32], [24130, 1, 6, 0.34], [10278, 3, 4, 1.14], [3915, 15, 4, 0.29], [6035, 23, 8, 0.64], [7361, 3, 4, 0.51], [21481, 7, 4, 0.96], [8023, 1, 4, 0.53], [13272, 29, 6, 0.64], [2323, 2, 4, 0.2], [7702, 2, 8, 0.58], [12613, 1, 4, 0.57], [12648, 1, 6, 0.46], [4223, 4, 4, 0.48], [948, 16, 4, 0.34], [1432, 2, 4, 0.0], [8085, 1, 4, 0.06], [12262, 3, 6, 0.26], [20196, 2, 4, 0.93], [1051, 2, 4, 0.5], [10574, 1, 4, 0.34], [10507, 2, 4, 0.32], [21315, 3, 4, 0.34], [1053, 729, 4, 0.27], [21806, 1, 4, 0.0], [952, 4, 4, 0.53], [3012, 1, 4, 0.51], [1407, 25, 4, 0.02], [2111, 3, 8, 0.38], [2709, 15, 4, 0.56], [13259, 25, 6, 0.62], [3024, 3, 4, 0.7], [8943, 1, 4, 0.57], [1414, 1, 4, 0.42], [11055, 3, 4, 2.21], [354, 2, 4, 0.23], [11677, 1, 4, 1.96], [9820, 3, 4, 1.25], [22125, 2, 4, 0.32], [9209, 29, 6, 0.62], [88, 1, 4, 0.61], [11054, 3, 5, 1.86], [8157, 29, 6, 0.79], [8167, 7, 5, 0.8], [19882, 1, 4, 0.32], [2366, 3, 4, 0.6], [9239, 29, 7, 0.76], [21269, 1, 4, 0.0], [21701, 3, 4, 1.04], [23039, 10, 7, 1.83], [20939, 3, 4, 0.76], [4030, 25, 4, 0.35], [10640, 3, 6, 0.64], [11056, 3, 4, 2.2], [4940, 1, 7, 0.46], [426, 1, 4, 0.6], [21693, 3, 6, 2.14], [21712, 1, 4, 0.44], [22871, 7, 4, 0.55], [825, 1, 4, 0.31], [19581, 1, 4, 0.0], [21710, 3, 16, 0.78], [3462, 2, 4, 0.61], [12517, 2, 4, 0.76], [6036, 23, 7, 0.64], [80, 1, 4, 0.57], [21808, 1, 4, 0.0], [10409, 1, 4, 0.59], [1431, 3, 6, 0.48], [5513, 2, 4, 0.51], [6270, 23, 26, 0.38], [11412, 29, 4, 0.0], [3429, 16, 4, 0.39], [3559, 11, 17, 0.44], [8188, 10, 9, 0.4], [10080, 3, 4, 0.0], [21320, 7, 14, 1.0], [149, 2, 4, 0.79], [9182, 1, 4, 0.0], [8688, 14, 7, 0.6], [8058, 3, 6, 0.9], [1260, 1, 4, 0.0], [5666, 2, 4, 1.05], [8286, 1, 4, 0.35], [13853, 3, 4, 0.61], [408, 3, 6, 1.06], [21459, 7, 8, 1.0], [20963, 3, 6, 1.24], [11965, 1, 4, 0.38], [9689, 1, 4, 0.3], [12586, 3, 7, 0.72], [8681, 3, 4, 0.36], [344, 25, 4, 0.78], [3989, 3, 11, 0.87], [380, 2, 4, 0.31], [21454, 2, 4, 0.32], [20188, 3, 4, 0.89], [11960, 3, 4, 0.33], [2318, 2, 4, 0.39], [22708, 1, 4, 0.49], [19685, 1, 4, 0.0], [1299, 3, 10, 0.48], [3609, 24, 4, 0.39], [8361, 1, 4, 0.41], [13268, 29, 4, 0.81], [214, 1, 4, 0.38], [2367, 3, 4, 0.59], [21820, 2, 4, 0.35], [3898, 3, 4, 0.49], [22038, 7, 11, 0.62], [20965, 3, 6, 1.15], [19383, 21, 10, 0.52], [11774, 1, 4, 0.44], [922, 1, 4, 0.25], [11467, 1, 4, 0.79], [5540, 1, 4, 0.33], [9380, 1, 10, 0.48], [3982, 1, 4, 0.84], [9150, 23, 6, 0.37], [4326, 1, 4, 0.28], [2365, 3, 6, 0.59], [23545, 3, 6, 0.62], [12165, 2, 4, 0.4], [21708, 3, 11, 0.48], [11411, 29, 4, 0.0], [21003, 2, 4, 0.93], [5341, 16, 4, 0.55], [12340, 2, 4, 0.76], [20964, 3, 6, 1.24], [23339, 3, 4, 0.51], [3558, 15, 4, 1.88], [11022, 3, 6, 0.8], [5577, 3, 4, 1.14], [4372, 1, 4, 0.67], [11678, 1, 6, 1.16], [19977, 2, 4, 1.69], [11290, 2, 4, 2.24], [11322, 3, 6, 0.8], [334, 25, 6, 0.7], [3908, 7, 12, 0.63], [8944, 1, 4, 0.38], [10398, 2, 4, 0.72], [22590, 1, 4, 0.36], [9049, 2, 4, 0.76], [2194, 1, 6, 0.29], [2326, 2, 4, 0.0], [12335, 2, 4, 0.36], [2193, 1, 10, 0.29], [12493, 23, 7, 0.3], [11090, 1, 4, 0.29], [10170, 1, 4, 0.68], [19361, 23, 8, 0.42], [13037, 3, 4, 1.15], [12040, 68, 6, 0.32], [3388, 1, 4, 1.01], [14038, 3, 6, 0.57], [426, 15, 4, 0.6], [12448, 2, 6, 0.45], [9910, 29, 7, 0.36], [71, 1, 4, 0.32], [21707, 3, 8, 0.0], [9409, 2, 6, 0.0], [11498, 1, 4, 0.58], [21771, 2, 10, 0.0], [1095, 2, 6, 0.35], [5368, 3, 5, 0.78], [2859, 16, 4, 0.35], [12056, 2, 6, 0.76], [11868, 3, 4, 0.59], [9083, 3, 6, 0.69], [803, 3, 4, 0.48], [512, 24, 4, 2.01], [11635, 1, 4, 0.31], [9239, 25, 4, 0.76], [9778, 1, 4, 0.55], [1602, 68, 4, 1.07], [22126, 2, 4, 0.32], [2222, 10, 4, 0.37], [10635, 2, 4, 0.97], [3598, 15, 4, 0.34], [9138, 23, 7, 0.69], [5813, 3, 6, 0.45], [5007, 1, 4, 0.5], [23030, 3, 7, 0.58], [5811, 3, 6, 0.41], [22236, 1, 4, 0.45], [11891, 3, 6, 0.65], [3389, 1, 4, 0.97], [12334, 2, 4, 0.43], [5769, 1, 5, 0.0], [5517, 1, 4, 0.7], [691, 3, 4, 0.46], [9373, 5, 4, 0.75], [2234, 1, 4, 0.33], [14040, 3, 6, 1.06], [11155, 11, 9, 0.32], [12516, 2, 4, 0.76], [8155, 25, 4, 0.6], [2099, 2, 4, 0.12], [10897, 1, 8, 0.67], [10616, 1, 4, 0.75], [13323, 3, 4, 0.52], [2421, 80, 6, 0.37], [8360, 1, 4, 0.42], [11048, 1, 4, 0.22], [1053, 728, 4, 0.27], [5647, 2, 4, 0.34], [10279, 3, 4, 1.16], [12701, 3, 6, 1.35], [1407, 2, 4, 0.0], [11909, 3, 4, 0.36], [12635, 2, 4, 0.61], [13299, 1, 4, 0.61], [20977, 1, 4, 0.29], [22321, 1, 4, 0.33], [1880, 4, 4, 2.02], [3387, 1, 4, 1.02], [12873, 1, 8, 0.65], [12230, 3, 4, 0.34], [20952, 3, 4, 0.62], [1059, 1, 4, 0.0], [12634, 2, 4, 0.0], [9623, 3, 4, 0.53], [11328, 3, 4, 0.78], [5188, 1, 4, 0.27], [11711, 3, 5, 0.85], [19346, 2, 4, 0.48], [2935, 1, 4, 0.41], [20190, 3, 4, 0.92], [12658, 1, 4, 1.08], [22879, 3, 4, 0.57], [1433, 1, 4, 1.02], [12538, 3, 6, 0.33], [12633, 2, 4, 0.82], [6872, 25, 4, 0.32], [11333, 7, 7, 0.76], [9830, 3, 4, 0.38], [10638, 2, 4, 0.97], [19969, 25, 4, 0.57], [13, 1, 4, 0.38], [19332, 2, 4, 0.37], [6872, 29, 6, 0.32], [947, 16, 4, 0.52], [13041, 3, 5, 0.42], [12379, 1, 4, 1.19], [2608, 1, 4, 0.44], [12418, 1, 4, 0.71], [2992, 3, 4, 1.02], [18, 1, 4, 0.35], [11091, 1, 5, 0.29], [21461, 7, 7, 1.0], [3906, 14, 6, 0.57], [13114, 1, 4, 0.43], [10149, 1, 4, 0.64], [13113, 1, 4, 0.44], [8923, 29, 4, 0.34], [12260, 3, 6, 0.9], [180, 15, 4, 0.6], [21482, 7, 4, 0.95], [96, 1, 4, 0.0], [2934, 1, 4, 0.35], [11902, 2, 4, 0.48], [11611, 2, 4, 0.58], [21319, 7, 10, 1.0], [948, 1, 4, 0.34], [12475, 3, 6, 1.14], [11619, 1, 4, 0.57], [5153, 2, 6, 0.0], [19366, 2, 4, 0.31], [22037, 7, 11, 0.62], [11213, 4, 4, 1.96], [17, 1, 4, 0.36], [9781, 1, 4, 0.6], [11057, 3, 4, 2.17], [432, 1, 7, 0.47], [10414, 1, 4, 0.37], [3853, 2, 4, 0.61], [1324, 1, 4, 0.33], [9871, 1, 6, 0.38], [13267, 29, 6, 0.61], [6630, 3, 4, 0.51], [6966, 3, 4, 1.08], [1805, 2, 4, 0.87], [19970, 29, 6, 0.36], [22029, 3, 4, 0.98], [22874, 3, 4, 0.56], [3854, 2, 4, 0.61], [10669, 2, 7, 0.52], [8106, 10, 4, 0.55], [8283, 1, 4, 0.37], [10668, 2, 6, 0.55], [11163, 1, 11, 0.57], [23231, 3, 6, 0.42], [2325, 2, 4, 0.18], [10666, 3, 4, 0.52], [19330, 1, 4, 0.39], [11327, 3, 6, 0.78], [13300, 3, 5, 0.92], [2916, 1, 4, 0.46], [5651, 2, 4, 0.29], [9149, 2, 4, 0.32], [2990, 3, 4, 0.99], [21688, 3, 6, 1.35], [19334, 2, 4, 0.39], [1601, 68, 4, 1.11], [22407, 1, 4, 0.38], [22884, 3, 6, 0.59], [12030, 2, 4, 0.37], [2495, 2, 4, 0.42], [3557, 15, 4, 0.42], [11105, 3, 4, 0.34], [3028, 3, 4, 0.3], [22920, 1, 4, 0.71], [22323, 1, 4, 0.37], [3477, 2, 4, 0.61], [12333, 2, 4, 0.43], [9608, 1, 4, 0.5], [3258, 1, 5, 0.68], [21684, 3, 7, 0.82], [8033, 2, 4, 0.34], [20978, 1, 4, 0.29], [426, 16, 4, 0.6], [12576, 3, 6, 0.59], [12513, 1, 4, 0.07], [10716, 3, 7, 0.36], [3851, 2, 4, 0.59], [8756, 1, 4, 0.52], [6356, 2, 4, 0.38], [11325, 3, 6, 0.78], [13295, 3, 6, 0.71], [3429, 1, 4, 0.39], [2999, 1, 4, 0.93], [23962, 3, 4, 0.56], [13854, 3, 4, 0.6], [9672, 3, 4, 0.59], [28, 1, 4, 0.59], [8132, 10, 16, 0.32], [9777, 1, 4, 0.45], [22573, 2, 4, 0.54], [12952, 21, 4, 1.37], [23331, 1, 4, 0.44], [21478, 7, 7, 0.67], [19375, 3, 4, 0.3], [9671, 3, 6, 0.59], [9910, 25, 4, 0.36], [13488, 1, 4, 0.68], [21686, 1, 4, 0.0], [23275, 2, 4, 0.54], [2507, 2, 4, 0.21], [12332, 2, 4, 0.44], [11962, 1, 4, 0.41], [6628, 3, 4, 0.33], [23489, 3, 6, 0.7], [12587, 3, 6, 0.72], [20961, 1, 6, 0.62], [19343, 2, 4, 0.45], [22878, 7, 4, 0.56], [11603, 2, 4, 1.03], [3013, 1, 4, 0.51], [23494, 3, 6, 0.26], [7084, 1, 4, 0.0], [19970, 25, 4, 0.36], [3723, 29, 4, 0.88], [2308, 25, 4, 0.7], [3599, 29, 4, 0.0], [806, 3, 4, 0.42], [5851, 1, 6, 0.36], [8907, 29, 6, 0.33], [9153, 2, 4, 0.39], [2403, 3, 4, 0.43], [7673, 7, 10, 0.37], [19344, 2, 4, 0.49], [8189, 10, 8, 0.39], [9877, 15, 4, 0.53], [8923, 25, 4, 0.34], [11613, 2, 4, 0.58], [8157, 80, 6, 0.79], [13494, 3, 6, 0.51], [9296, 1, 4, 0.39], [1722, 2, 4, 0.3], [21690, 3, 6, 1.04], [19362, 23, 6, 0.42], [11895, 1, 4, 0.28], [1513, 3, 6, 0.3], [21752, 2, 4, 0.0], [9960, 3, 4, 0.38], [11735, 3, 4, 0.7], [22631, 3, 11, 0.39], [8363, 1, 4, 0.52], [8963, 1, 4, 0.54], [12029, 2, 4, 0.37], [21817, 2, 4, 0.35], [12585, 3, 4, 0.54], [9150, 2, 4, 0.35], [13855, 3, 6, 0.65], [5660, 2, 4, 1.65], [23491, 3, 4, 0.26], [21091, 7, 4, 0.32], [59, 1, 4, 0.0], [19350, 2, 4, 0.49], [20262, 1, 4, 0.41], [2481, 15, 4, 0.38], [21010, 2, 4, 0.93], [10174, 1, 4, 0.77], [11867, 3, 4, 0.56], [10530, 29, 10, 0.81], [19335, 2, 4, 0.4], [12031, 2, 4, 0.37], [11321, 3, 6, 0.81], [12162, 2, 4, 0.39], [21704, 1, 4, 0.37], [12476, 3, 6, 1.15], [20198, 2, 4, 0.93], [11093, 1, 4, 0.29], [22888, 3, 6, 0.45], [12458, 1, 4, 1.03], [12492, 3, 4, 0.45], [473, 1, 4, 0.36], [21698, 3, 4, 0.56], [12577, 3, 6, 0.59], [9963, 3, 6, 0.59], [8683, 3, 6, 0.38], [10722, 2, 4, 0.3], [2364, 3, 6, 0.59], [3599, 25, 4, 1.4], [1060, 1, 4, 0.0], [11585, 29, 12, 0.73], [9084, 3, 6, 0.69], [9209, 25, 5, 0.62], [23232, 3, 6, 0.44], [345, 1, 4, 0.0], [3390, 1, 4, 0.97], [23038, 10, 7, 0.94], [23493, 3, 4, 0.26], [2480, 15, 4, 0.31], [6946, 1, 4, 0.77], [19352, 2, 4, 0.5], [10125, 1, 6, 0.39], [2103, 16, 4, 0.4], [951, 4, 4, 0.48], [13399, 3, 4, 0.3], [2287, 25, 4, 0.67], [12534, 10, 10, 0.45], [19879, 1, 4, 0.32], [10586, 3, 4, 0.5], [12238, 3, 4, 1.44], [19358, 23, 6, 0.43], [344, 2, 6, 0.78], [9611, 12, 4, 0.56], [19369, 2, 4, 0.3], [20315, 3, 4, 0.41], [5652, 2, 4, 0.4], [4043, 29, 6, 0.42], [2169, 3, 4, 0.66], [20958, 3, 4, 0.58], [2217, 1, 4, 0.46], [13326, 3, 4, 0.42], [5910, 10, 11, 0.31], [9493, 1, 4, 0.0], [8651, 2, 4, 0.78], [1619, 1, 4, 0.42], [11020, 3, 4, 0.79], [5341, 1, 4, 0.55], [12674, 1, 6, 0.52], [22865, 7, 8, 0.69], [1691, 1, 4, 0.64], [19968, 29, 6, 0.0], [3915, 1, 4, 0.29], [9153, 23, 7, 0.39], [9480, 2, 4, 0.29], [19379, 2, 4, 0.73], [2411, 29, 8, 0.51], [9841, 1, 4, 0.43], [12426, 3, 6, 0.51], [20953, 3, 4, 0.63], [9207, 29, 4, 0.82], [23247, 25, 4, 0.38], [10532, 14, 7, 0.34], [22696, 3, 4, 0.57], [12339, 2, 4, 0.66], [19968, 25, 6, 0.08], [12725, 1, 4, 0.56], [12930, 2, 4, 0.33], [2743, 3, 4, 0.75], [11226, 1, 4, 0.43], [4966, 2, 4, 0.34], [23546, 3, 6, 0.5], [20316, 3, 4, 0.41], [19969, 29, 4, 0.57], [21822, 2, 4, 0.36], [12024, 2, 4, 0.6], [23380, 25, 4, 0.36], [12250, 14, 4, 0.28], [3430, 16, 4, 0.61], [857, 1, 4, 0.83], [10670, 2, 5, 0.48], [8280, 2, 6, 1.0], [22565, 3, 6, 0.88], [12366, 3, 4, 1.5], [22408, 1, 4, 0.43], [3053, 3, 4, 0.87], [19340, 2, 4, 0.41], [12218, 3, 10, 0.48], [10413, 1, 4, 0.0], [3903, 14, 6, 0.74], [9148, 23, 6, 0.34], [13489, 1, 4, 0.69], [1664, 2, 4, 0.29], [21012, 2, 4, 0.93], [3551, 3, 4, 0.43], [2421, 29, 4, 0.37], [12255, 14, 4, 0.28], [11968, 1, 4, 0.2], [8281, 2, 4, 1.0], [9489, 2, 4, 0.34], [11021, 3, 6, 0.79], [12494, 3, 4, 0.3], [12430, 1, 4, 0.71], [962, 10, 9, 0.44], [22706, 1, 4, 0.47], [11087, 1, 4, 0.45], [11185, 23, 4, 0.25], [8191, 10, 7, 0.38], [11403, 1, 8, 0.02], [9485, 2, 4, 0.34], [2190, 1, 4, 0.42], [21004, 2, 4, 0.93], [11659, 3, 4, 1.14], [4866, 1, 4, 0.41], [3134, 3, 11, 0.4], [8660, 1, 4, 0.0], [19337, 2, 4, 0.41], [11509, 2, 4, 1.69], [12630, 10, 6, 0.38], [11643, 1, 4, 0.64], [633, 15, 4, 0.0], [20317, 3, 4, 0.41], [12645, 1, 4, 0.9], [11860, 3, 4, 0.45], [13004, 3, 4, 0.3], [12232, 3, 4, 0.35], [8934, 2, 4, 1.84], [13966, 1, 4, 0.46], [13392, 23, 10, 0.33], [10150, 3, 15, 0.37], [12994, 3, 10, 0.58], [23341, 3, 4, 0.51], [8872, 1, 4, 0.45], [2100, 25, 4, 0.48], [358, 1, 4, 0.07], [9840, 1, 4, 0.43], [23380, 29, 4, 0.36], [3421, 3, 16, 0.25], [12505, 1, 4, 0.43], [11887, 1, 4, 0.48], [8050, 2, 4, 0.41], [8753, 1, 4, 0.51], [11901, 2, 4, 0.46], [8285, 1, 4, 0.41], [2196, 25, 4, 0.04], [689, 3, 4, 0.42], [10529, 29, 8, 0.82], [201, 1, 4, 0.0], [23492, 3, 4, 0.26], [11687, 1, 4, 0.22], [8059, 1, 4, 0.93], [23040, 1, 4, 0.0], [11899, 2, 4, 0.48], [23335, 14, 6, 0.6], [19365, 2, 4, 0.3], [2851, 1, 4, 0.74], [11338, 7, 4, 0.91], [10538, 3, 4, 0.35], [19964, 29, 7, 0.39], [3848, 2, 4, 0.61], [12609, 1, 4, 0.46], [23961, 1, 4, 0.58], [13257, 29, 4, 0.7], [12357, 1, 4, 1.27], [11861, 3, 6, 0.66], [10838, 3, 4, 0.52], [9070, 1, 5, 0.33], [333, 25, 6, 0.68], [12309, 2, 4, 0.74], [2217, 15, 4, 0.47], [880, 2, 4, 1.6], [2406, 29, 5, 0.71], [7364, 2, 4, 0.0], [1294, 1, 4, 0.0], [22908, 3, 6, 0.19], [385, 1, 4, 0.99], [19374, 2, 4, 0.32], [2733, 3, 4, 1.0], [12241, 1, 7, 0.28], [23230, 3, 4, 0.44], [22436, 3, 7, 0.49], [2859, 1, 4, 0.35], [24126, 3, 4, 0.46], [4001, 1, 4, 0.84], [13027, 3, 6, 1.02], [9148, 2, 4, 0.34], [23490, 3, 4, 0.7], [21088, 7, 5, 0.33], [11212, 4, 4, 1.96], [8051, 2, 4, 0.43], [11857, 1, 4, 0.74], [19345, 2, 4, 0.4], [22891, 3, 4, 0.19], [22893, 3, 4, 0.59], [22588, 3, 4, 0.43], [61, 1, 4, 0.0], [11896, 2, 4, 0.35], [13254, 29, 7, 0.42], [10530, 80, 4, 0.81], [3905, 14, 6, 0.0], [11719, 1, 4, 0.0], [3864, 2, 4, 0.54], [3552, 3, 4, 0.43], [22585, 3, 4, 0.43], [947, 1, 4, 0.52], [11162, 1, 32, 0.77], [14015, 3, 4, 0.0], [6627, 3, 4, 0.34], [9483, 2, 4, 0.29], [1576, 1, 4, 0.49], [11945, 3, 4, 0.64], [20306, 23, 6, 0.53], [9081, 1, 4, 0.77], [94, 1, 6, 0.78], [7204, 1, 4, 0.61], [6540, 25, 4, 0.73], [12512, 1, 4, 0.3], [20308, 23, 7, 0.53], [2196, 2, 4, 0.0], [2744, 3, 4, 0.78], [19964, 25, 4, 0.4], [13396, 3, 4, 0.3], [12032, 2, 4, 0.37], [19686, 1, 4, 0.49], [19364, 23, 6, 0.41], [2857, 1, 4, 0.36], [9085, 29, 6, 0.8], [6507, 1, 4, 0.31], [1512, 3, 7, 0.28], [5406, 2, 4, 0.39]</t>
+  </si>
+  <si>
+    <t>[[2327, 2, 13, 0.75], [305, 2, 11, 0.59], [130, 1, 10, 0.33], [589, 2, 15, 0.0], [6935, 2, 25, 1.25], [8915, 2, 12, 0.0], [2328, 2, 12, 0.75], [326, 2, 12, 0.47], [2778, 2, 12, 0.73], [143, 2, 10, 0.45], [144, 2, 10, 0.7], [8648, 2, 11, 0.89], [205, 2, 8, 0.47], [8650, 2, 11, 0.89], [616, 2, 19, 0.55], [5493, 2, 13, 0.57], [1446, 2, 7, 0.0], [615, 2, 19, 0.54], [2775, 2, 10, 0.73], [88, 10, 25, 0.6], [151, 1, 11, 0.36], [593, 2, 17, 0.47], [9507, 3, 4, 0.21], [146, 2, 8, 0.68], [2049, 3, 17, 0.3], [3840, 1, 10, 0.41], [7004, 1, 7, 0.4], [206, 2, 7, 0.47], [990, 2, 8, 0.46], [12224, 1, 7, 0.47], [2776, 2, 10, 0.73], [8938, 2, 7, 0.0], [145, 2, 8, 0.52], [2055, 3, 8, 0.0], [378, 2, 8, 0.88], [159, 3, 11, 0.31], [1429, 2, 6, 0.0], [141, 2, 8, 0.54], [5491, 2, 8, 0.56], [2054, 3, 8, 0.0], [3893, 1, 8, 0.4], [2057, 3, 8, 0.0], [10, 2, 11, 0.38], [8853, 2, 13, 1.25], [8649, 2, 8, 0.89], [434, 2, 8, 0.2], [6936, 2, 15, 1.25], [3889, 1, 7, 0.34], [624, 2, 15, 0.56], [3891, 1, 8, 0.38], [362, 2, 8, 0.54], [1504, 2, 10, 1.1], [2050, 3, 7, 0.0], [7036, 1, 8, 0.96], [61, 3, 7, 0.52], [248, 1, 7, 0.49], [10993, 2, 11, 0.48], [997, 2, 7, 0.0], [140, 2, 8, 0.46], [9760, 29, 8, 0.2], [10574, 3, 11, 0.6], [1124, 2, 10, 0.55], [19925, 2, 8, 0.99], [998, 2, 7, 0.0], [75, 2, 10, 0.48], [5208, 3, 13, 0.4], [1007, 2, 10, 0.28], [417, 2, 7, 0.54], [2497, 2, 10, 1.09], [8672, 2, 11, 0.81], [12225, 1, 4, 0.46], [996, 2, 6, 0.0], [7005, 1, 6, 0.4], [20927, 1, 4, 0.4], [346, 3, 6, 0.52], [523, 2, 6, 0.54], [11737, 2, 7, 0.57], [361, 2, 7, 0.54], [142, 2, 8, 0.54], [94, 4, 4, 0.78], [2912, 1, 10, 0.4], [7084, 3, 4, 0.09], [8939, 2, 4, 0.0], [7886, 4, 6, 0.32], [11811, 1, 7, 0.39], [3, 2, 10, 0.34], [972, 3, 8, 0.43], [7885, 4, 6, 0.33], [5165, 1, 7, 0.47], [229, 1, 4, 0.88], [1126, 2, 6, 0.41], [9372, 1, 12, 0.1], [11953, 1, 7, 0.98], [995, 2, 4, 0.43], [1656, 2, 7, 0.79], [10149, 3, 30, 0.66], [2991, 3, 6, 0.84], [5209, 3, 10, 0.4], [957, 2, 6, 0.57], [955, 2, 8, 0.86], [1413, 15, 4, 0.42], [12870, 1, 7, 0.96], [11404, 2, 10, 0.62], [22179, 1, 4, 0.56], [13964, 1, 4, 0.45], [13962, 1, 4, 0.52], [5165, 2, 13, 0.47], [2424, 80, 9, 0.84], [11234, 2, 8, 0.51], [8651, 2, 6, 0.85], [346, 1, 7, 0.51], [9491, 21, 16, 0.43], [20252, 2, 25, 0.56], [12269, 2, 7, 0.51], [1005, 2, 4, 0.34], [13967, 1, 4, 0.41], [5946, 1, 4, 0.77], [13028, 3, 7, 1.33], [76, 2, 4, 0.51], [11808, 1, 6, 0.56], [12721, 2, 10, 0.77], [1886, 2, 11, 2.53], [412, 1, 4, 0.63], [1163, 3, 7, 0.41], [214, 3, 15, 0.31], [2912, 2, 13, 0.4], [413, 1, 4, 0.62], [11769, 1, 4, 0.04], [1654, 2, 6, 0.79], [11681, 2, 16, 1.5], [126, 2, 4, 0.65], [11490, 1, 4, 0.73], [13928, 1, 4, 0.6], [20256, 2, 23, 0.62], [584, 2, 4, 0.78], [10148, 1, 7, 0.33], [21793, 1, 10, 1.25], [11039, 2, 7, 0.99], [22316, 3, 7, 0.58], [2774, 2, 7, 1.57], [3429, 15, 4, 0.39], [1414, 15, 4, 0.42], [1006, 2, 6, 0.44], [583, 2, 4, 0.77], [950, 1, 10, 0.73], [956, 2, 4, 0.4], [1492, 1, 7, 0.34], [11767, 1, 4, 0.01], [7887, 4, 4, 0.37], [96, 11, 25, 0.75], [10407, 10, 12, 2.22], [9784, 1, 4, 0.54], [418, 2, 5, 0.54], [152, 21, 4, 1.08], [5076, 1, 11, 1.21], [74, 1, 7, 1.55], [11770, 1, 7, 0.69], [2805, 137, 12, 2.07], [11739, 2, 4, 0.57], [12229, 2, 8, 0.47], [411, 2, 4, 0.73], [8286, 2, 6, 0.34], [6497, 1, 10, 0.53], [2436, 4, 4, 1.04], [71, 15, 4, 0.39], [22247, 2, 8, 0.77], [13965, 1, 4, 0.48], [8898, 3, 7, 1.33], [7567, 3, 6, 0.54], [105, 3, 4, 0.13], [9690, 1, 4, 0.43], [5584, 3, 4, 1.39], [8283, 2, 6, 0.36], [159, 1, 10, 0.3], [11671, 1, 7, 0.81], [8943, 3, 4, 0.56], [410, 1, 4, 1.08], [2424, 29, 8, 0.84], [114, 3, 4, 0.13], [12212, 29, 7, 0.48], [12764, 2, 10, 0.56], [8274, 3, 7, 0.49], [6158, 2, 7, 0.75], [161, 3, 10, 0.69], [1243, 2, 8, 1.28], [8635, 3, 6, 0.49], [5490, 2, 4, 0.51], [10410, 10, 12, 2.21], [11813, 1, 4, 0.61], [9, 1, 6, 0.38], [2423, 80, 7, 0.72], [6805, 1, 4, 0.56], [8677, 3, 7, 0.46], [336, 15, 4, 0.32], [33, 1, 4, 0.77], [972, 1, 4, 0.43], [35, 1, 4, 0.77], [6097, 80, 4, 0.89], [83, 2, 4, 0.35], [12223, 1, 4, 0.54], [4032, 29, 9, 0.91], [11812, 1, 4, 0.43], [12369, 3, 12, 1.78], [159, 16, 4, 0.29], [2331, 1, 4, 1.12], [9081, 3, 12, 0.7], [13968, 1, 4, 0.49], [4253, 1, 4, 0.5], [21059, 1, 7, 0.63], [8676, 2, 6, 0.81], [1339, 3, 20, 0.37], [11504, 2, 4, 0.54], [5164, 1, 4, 0.54], [415, 1, 4, 0.62], [1519, 3, 19, 0.36], [38, 1, 4, 0.76], [22317, 3, 7, 0.6], [11772, 1, 6, 1.56], [110, 4, 4, 0.39], [8944, 3, 4, 0.37], [11164, 1, 7, 1.19], [788, 2, 4, 0.3], [10408, 10, 12, 0.55], [8104, 1, 8, 0.51], [335, 3, 15, 0.42], [34, 1, 4, 0.77], [12271, 2, 6, 0.51], [11952, 1, 7, 1.13], [84, 2, 4, 0.38], [12720, 2, 6, 0.77], [11235, 2, 12, 1.19], [11814, 1, 4, 0.44], [20649, 1, 4, 0.76], [202, 2, 4, 0.34], [440, 3, 4, 1.51], [13034, 3, 7, 1.17], [14041, 3, 6, 0.33], [3495, 3, 19, 0.55], [11674, 1, 4, 0.0], [21704, 3, 19, 0.37], [6496, 1, 6, 0.79], [9691, 1, 4, 0.43], [1548, 1, 4, 0.59], [11489, 1, 4, 0.73], [20258, 2, 11, 0.45], [8285, 2, 6, 0.4], [10631, 2, 6, 0.97], [13928, 2, 7, 0.6], [973, 3, 7, 0.6], [3576, 29, 7, 0.55], [66, 15, 4, 0.38], [11687, 2, 6, 0.23], [12964, 3, 4, 1.07], [1895, 3, 6, 0.95], [10411, 10, 11, 0.57], [3900, 3, 4, 0.63], [5005, 3, 10, 0.36], [11954, 1, 4, 0.23], [1274, 1, 4, 0.56], [823, 1, 4, 0.81], [8121, 3, 6, 0.28], [39, 1, 4, 0.76], [11586, 1, 7, 0.81], [11179, 1, 4, 0.71], [8945, 3, 6, 0.9], [8120, 3, 4, 0.28], [286, 3, 4, 0.74], [21060, 1, 4, 0.63], [6097, 29, 6, 0.89], [5434, 1, 4, 0.41], [10406, 10, 11, 0.66], [11116, 1, 4, 0.29], [416, 1, 4, 0.62], [8659, 1, 4, 0.81], [3892, 1, 4, 0.63], [435, 2, 4, 0.62], [1622, 1, 8, 0.33], [414, 1, 4, 0.62], [21712, 3, 20, 0.32], [389, 4, 4, 0.72], [37, 1, 4, 0.76], [3980, 4, 8, 0.69], [3576, 25, 7, 0.55], [11236, 2, 10, 0.63], [12355, 3, 6, 1.13], [590, 15, 4, 0.33], [632, 11, 23, 0.0], [7007, 1, 4, 0.48], [9065, 2, 6, 0.26], [3894, 1, 4, 0.77], [9126, 1, 7, 0.61], [13893, 2, 6, 0.74], [12356, 3, 6, 1.04], [2336, 3, 10, 0.43], [3048, 3, 7, 0.99], [6494, 1, 7, 0.35], [2703, 3, 7, 0.59], [12357, 3, 7, 1.33], [10536, 3, 7, 0.26], [5453, 1, 6, 0.59], [66, 16, 4, 0.38], [2438, 2, 8, 0.5], [19931, 1, 6, 0.41], [12362, 3, 6, 1.13], [11150, 2, 11, 0.37], [19583, 3, 6, 0.95], [8674, 2, 7, 0.81], [2104, 3, 13, 0.38], [11689, 2, 6, 0.23], [12338, 29, 4, 0.44], [9049, 2, 4, 0.69], [7558, 3, 6, 0.19], [1699, 3, 4, 0.54], [12979, 25, 11, 0.59], [10936, 2, 4, 1.01], [3430, 15, 4, 0.61], [432, 3, 6, 0.61], [93, 11, 19, 0.57], [12646, 1, 6, 0.83], [1703, 2, 8, 1.35], [11158, 1, 10, 1.1], [2423, 29, 4, 0.73], [1667, 3, 4, 0.54], [3575, 29, 7, 0.58], [11510, 3, 6, 0.64], [7704, 2, 7, 0.63], [21683, 3, 6, 0.95], [9785, 1, 4, 0.54], [10172, 3, 8, 0.32], [8897, 3, 6, 1.32], [12526, 2, 4, 0.61], [3334, 5, 10, 2.06], [789, 2, 4, 0.3], [8284, 2, 6, 0.41], [3674, 2, 6, 0.85], [11485, 24, 4, 0.99], [215, 4, 4, 0.96], [45, 2, 6, 2.28], [82, 2, 4, 0.36], [9786, 1, 4, 0.54], [13433, 2, 8, 0.81], [9787, 1, 4, 0.55], [3047, 3, 7, 0.91], [147, 1, 4, 0.75], [4076, 3, 4, 0.93], [1080, 3, 4, 2.62], [9827, 3, 4, 0.4], [10409, 10, 11, 0.64], [3456, 3, 4, 0.44], [4940, 1, 7, 0.44], [21686, 3, 9, 1.27], [7182, 1, 4, 0.34], [7705, 2, 7, 0.63], [2859, 15, 4, 0.55], [11089, 1, 4, 1.22], [1523, 1, 4, 0.89], [1413, 16, 4, 0.42], [12653, 1, 7, 0.34], [12501, 1, 4, 0.0], [9124, 1, 6, 0.61], [399, 24, 4, 0.71], [1490, 1, 6, 0.63], [12647, 1, 7, 0.82], [12373, 1, 8, 1.55], [220, 4, 4, 0.97], [947, 15, 4, 0.52], [1309, 1, 4, 0.56], [3059, 3, 6, 0.93], [5585, 3, 4, 1.35], [3577, 25, 7, 0.47], [19047, 3, 4, 0.43], [10514, 3, 4, 0.58], [4232, 80, 6, 0.82], [7707, 2, 7, 0.63], [70, 16, 4, 0.35], [21269, 3, 4, 2.18], [1049, 2, 6, 0.3], [8600, 1, 4, 0.83], [247, 1, 6, 0.68], [567, 2, 7, 0.57], [11690, 2, 6, 0.24], [1050, 2, 6, 0.3], [5164, 2, 10, 0.53], [1661, 3, 4, 0.54], [2109, 3, 15, 0.44], [9082, 3, 33, 0.95], [9204, 3, 6, 0.75], [3575, 25, 7, 0.58], [12662, 1, 4, 0.82], [10407, 1, 4, 0.0], [439, 1, 4, 0.52], [21713, 3, 15, 0.35], [12361, 3, 6, 1.34], [5005, 1, 7, 0.38], [11491, 2, 4, 0.54], [79, 1, 6, 0.44], [1339, 1, 4, 0.35], [8356, 1, 4, 0.97], [10388, 2, 4, 0.75], [436, 2, 6, 0.58], [6931, 2, 4, 0.57], [20486, 3, 6, 0.99], [11778, 1, 8, 0.44], [10537, 3, 6, 0.35], [7573, 1, 11, 0.63], [22029, 3, 4, 1.0], [11426, 25, 6, 0.53], [10633, 2, 4, 0.97], [270, 3, 4, 0.48], [18964, 1, 4, 0.56], [11844, 2, 4, 0.77], [11942, 29, 8, 0.83], [938, 3, 6, 0.64], [11181, 1, 8, 1.47], [7708, 2, 8, 0.63], [3577, 29, 5, 0.47], [10780, 10, 6, 1.55], [11160, 1, 7, 1.08], [11426, 29, 6, 0.52], [19581, 3, 6, 0.95], [11081, 3, 4, 0.56], [21809, 1, 6, 0.0], [13033, 3, 6, 1.17], [10939, 2, 4, 1.01], [856, 1, 4, 0.38], [9783, 1, 4, 0.52], [1801, 1, 4, 0.73], [71, 16, 4, 0.38], [10940, 2, 4, 1.01], [7706, 2, 6, 0.63], [5007, 3, 9, 0.45], [62, 3, 19, 0.7], [11936, 2, 4, 1.01], [1604, 68, 4, 0.93], [2492, 1, 4, 0.54], [19932, 1, 4, 0.45], [13023, 3, 9, 0.69], [12661, 1, 4, 2.0], [12234, 3, 5, 1.19], [11183, 1, 8, 1.67], [11846, 3, 4, 0.57], [1300, 3, 4, 0.65], [13498, 3, 6, 1.34], [2422, 80, 6, 0.82], [36, 1, 4, 0.77], [107, 2, 7, 0.63], [9971, 2, 4, 0.83], [958, 2, 4, 0.59], [9507, 1, 4, 0.21], [97, 11, 21, 0.53], [11685, 2, 17, 1.57], [148, 1, 4, 0.75], [3975, 4, 4, 0.69], [10941, 2, 4, 1.01], [2991, 1, 6, 0.84], [1668, 1, 4, 0.59], [2854, 21, 11, 0.46], [66, 1, 6, 0.38], [12728, 1, 4, 0.0], [21810, 1, 6, 0.0], [6489, 11, 20, 0.23], [10825, 21, 16, 0.62], [10413, 10, 8, 1.41], [6266, 23, 15, 0.48], [9186, 29, 4, 0.47], [3143, 3, 4, 0.88], [2528, 29, 4, 0.47], [1691, 1, 4, 0.72], [382, 1, 4, 1.0], [3478, 2, 4, 0.56], [216, 4, 4, 0.62], [1185, 3, 4, 1.14], [21697, 3, 4, 0.57], [3049, 3, 6, 0.96], [5976, 1, 6, 0.6], [2322, 2, 4, 0.63], [11868, 3, 4, 0.57], [11768, 1, 4, 0.0], [11794, 2, 5, 0.3], [8927, 10, 12, 0.29], [10386, 2, 4, 0.75], [98, 11, 23, 0.34], [6098, 80, 4, 0.71], [12241, 3, 6, 0.28], [7119, 3, 4, 0.41], [3341, 3, 4, 1.12], [2738, 3, 6, 0.98], [2878, 1, 4, 1.18], [8234, 1, 4, 0.7], [11288, 2, 7, 2.6], [10093, 3, 15, 0.88], [11738, 2, 4, 0.58], [10937, 2, 4, 1.01], [10398, 2, 4, 0.65], [9965, 2, 4, 0.83], [9069, 1, 4, 0.72], [22318, 3, 6, 0.93], [2803, 2, 8, 1.07], [9113, 15, 6, 0.35], [12368, 3, 6, 1.36], [6952, 1, 6, 0.83], [107, 7, 8, 0.62], [8673, 2, 4, 0.9], [21687, 3, 7, 1.27], [2109, 1, 7, 0.44], [11425, 25, 4, 0.5], [5435, 1, 4, 0.29], [21706, 3, 15, 0.32], [11150, 1, 4, 0.38], [7122, 3, 4, 0.41], [10408, 1, 6, 0.52], [12358, 3, 6, 1.32], [9491, 1, 7, 0.4], [5940, 3, 4, 0.42], [14018, 3, 4, 0.22], [11425, 29, 6, 0.5], [11159, 1, 8, 1.05], [12360, 3, 6, 1.31], [11180, 1, 4, 0.71], [9374, 5, 7, 1.32], [10516, 3, 7, 0.59], [9355, 1, 4, 0.55], [11587, 1, 6, 0.92], [23961, 3, 4, 0.52], [11793, 2, 7, 0.76], [10717, 3, 6, 0.32], [13025, 3, 6, 0.97], [2368, 3, 7, 0.62], [13264, 29, 6, 0.44], [21807, 1, 4, 0.0], [12417, 1, 4, 0.71], [12417, 3, 6, 0.7], [4372, 10, 11, 0.65], [2335, 3, 4, 0.53], [21806, 1, 4, 0.0], [11711, 3, 4, 0.8], [2049, 1, 4, 0.29], [10410, 1, 4, 0.0], [10581, 3, 7, 1.19], [12010, 3, 4, 0.0], [409, 1, 4, 0.49], [2169, 3, 6, 0.43], [11084, 2, 6, 0.56], [12979, 1, 4, 0.57], [9138, 2, 5, 0.66], [974, 3, 6, 0.74], [7724, 3, 4, 1.08], [2538, 1, 7, 0.24], [11080, 3, 4, 1.87], [9854, 1, 4, 0.83], [11644, 1, 4, 0.63], [11087, 2, 6, 0.56], [9840, 25, 10, 0.41], [20650, 1, 4, 0.8], [7324, 1, 4, 0.43], [3337, 1, 4, 0.76], [288, 3, 6, 0.65], [3981, 3, 22, 0.87], [20555, 2, 4, 0.6], [524, 1, 4, 0.63], [13110, 3, 7, 1.78], [10414, 10, 8, 0.33], [21700, 3, 4, 1.06], [4329, 3, 10, 0.33], [1432, 25, 6, 0.38], [9841, 25, 11, 0.41], [21703, 3, 4, 1.04], [1024, 1, 4, 0.38], [3934, 5, 13, 0.98], [6728, 1, 4, 0.51], [12235, 3, 4, 1.19], [10181, 26, 11, 0.0], [11719, 3, 9, 2.14], [11450, 2, 4, 0.32], [11088, 2, 6, 0.56], [12935, 3, 6, 0.8], [8054, 1, 4, 0.59], [10411, 1, 7, 0.54], [21699, 3, 6, 0.57], [12304, 1, 4, 1.48], [11771, 1, 6, 0.25], [11726, 29, 4, 0.4], [1575, 1, 4, 0.77], [12270, 2, 4, 0.53], [10385, 2, 4, 0.56], [11085, 2, 7, 0.56], [11427, 2, 4, 0.34], [1277, 1, 8, 0.57], [19924, 2, 6, 0.89], [11603, 2, 4, 1.03], [8599, 1, 4, 0.92], [563, 2, 4, 0.36], [11526, 10, 11, 0.29], [10720, 29, 6, 0.45], [21683, 1, 4, 0.0], [7703, 2, 5, 0.63], [9828, 3, 4, 0.4], [10540, 3, 4, 0.36], [11678, 1, 8, 1.16], [5020, 23, 18, 0.48], [20969, 3, 6, 1.15], [10632, 2, 4, 0.97], [11178, 1, 4, 0.68], [23611, 3, 7, 0.81], [3088, 1, 4, 0.34], [10387, 2, 4, 0.76], [2103, 15, 4, 0.4], [1406, 25, 6, 0.44], [942, 3, 4, 0.59], [12621, 1, 4, 0.8], [944, 15, 4, 0.32], [2369, 3, 7, 0.45], [14017, 3, 4, 0.23], [490, 1, 7, 0.43], [11625, 29, 7, 0.4], [4176, 4, 4, 0.69], [11495, 1, 4, 0.27], [22968, 1, 4, 0.41], [19687, 1, 4, 0.68], [186, 3, 11, 0.56], [12365, 3, 6, 1.03], [11717, 3, 4, 2.22], [3982, 3, 18, 0.84], [5343, 15, 4, 0.52], [11960, 3, 6, 0.29], [4327, 1, 4, 0.58], [12059, 3, 6, 0.55], [1301, 3, 4, 0.68], [201, 3, 6, 0.8], [11161, 1, 7, 0.96], [3391, 1, 4, 0.99], [10124, 1, 7, 0.33], [10630, 2, 4, 0.97], [289, 3, 4, 0.65], [332, 2, 4, 0.34], [991, 2, 4, 0.63], [3723, 25, 4, 0.88], [21705, 3, 10, 0.83], [424, 11, 11, 0.54], [1413, 1, 4, 0.42], [12367, 3, 6, 1.35], [3909, 7, 13, 0.65], [12791, 2, 8, 0.42], [4203, 1, 4, 0.39], [3722, 25, 4, 0.34], [11157, 11, 8, 0.33], [3278, 29, 4, 0.54], [12764, 1, 4, 0.55], [3910, 7, 12, 0.65], [11930, 1, 4, 1.15], [13198, 29, 4, 0.62], [5734, 2, 4, 0.35], [5939, 3, 4, 0.45], [10720, 80, 6, 0.45], [1414, 16, 4, 0.42], [13035, 3, 6, 0.99], [11467, 1, 4, 1.18], [12058, 3, 4, 0.55], [9796, 3, 12, 0.59], [21474, 7, 4, 0.96], [1515, 1, 4, 0.31], [13024, 3, 6, 0.97], [10275, 3, 5, 0.47], [9068, 1, 4, 0.75], [12363, 3, 6, 1.32], [6267, 23, 13, 0.48], [13107, 3, 7, 2.12], [20498, 3, 6, 0.83], [22330, 3, 4, 0.95], [2422, 29, 4, 0.81], [19582, 3, 4, 0.95], [308, 1, 4, 0.43], [3104, 1, 4, 0.92], [406, 3, 8, 1.12], [6269, 23, 14, 0.08], [9149, 23, 6, 0.34], [12369, 1, 6, 0.0], [11306, 2, 4, 1.66], [12873, 1, 6, 0.62], [20556, 2, 4, 0.53], [10521, 3, 6, 0.64], [952, 4, 4, 0.52], [21694, 3, 7, 1.05], [8636, 3, 7, 1.27], [11618, 1, 4, 0.58], [6098, 29, 4, 0.71], [11775, 1, 4, 0.48], [12418, 3, 6, 0.7], [13263, 29, 4, 0.64], [11399, 2, 4, 0.45], [353, 1, 4, 0.76], [2193, 1, 18, 0.26], [12875, 1, 6, 0.49], [13041, 3, 5, 0.42], [4030, 25, 6, 0.41], [7702, 2, 7, 0.63], [10147, 1, 6, 0.33], [11677, 1, 4, 2.36], [10531, 14, 11, 0.5], [6872, 25, 4, 0.38], [2108, 3, 8, 0.33], [560, 1, 4, 0.95], [9083, 3, 5, 0.69], [21692, 3, 6, 1.51], [9358, 1, 7, 0.31], [23545, 3, 6, 0.53], [12053, 2, 7, 0.76], [8675, 2, 6, 0.81], [5341, 15, 4, 0.55], [3983, 4, 4, 0.69], [20486, 1, 4, 0.0], [10721, 29, 6, 0.34], [5513, 2, 6, 0.37], [1851, 1, 4, 0.32], [2421, 80, 6, 0.37], [9113, 1, 4, 0.34], [11091, 1, 4, 0.29], [5128, 1, 4, 0.48], [10609, 1, 8, 1.24], [1091, 1, 4, 0.37], [22920, 3, 6, 0.7], [22573, 2, 4, 0.54], [8557, 3, 4, 0.8], [23032, 3, 6, 0.59], [21701, 3, 4, 1.04], [23276, 3, 6, 0.88], [10412, 10, 8, 0.39], [5343, 16, 4, 0.53], [9964, 2, 4, 0.83], [6359, 10, 12, 0.35], [11410, 29, 7, 0.4], [11773, 1, 4, 0.45], [7457, 3, 6, 0.42], [3979, 3, 17, 0.84], [22570, 1, 4, 0.78], [10461, 3, 7, 0.74], [21783, 2, 4, 0.35], [4030, 29, 4, 0.42], [448, 1, 4, 0.37], [12706, 23, 19, 0.0], [13258, 29, 10, 0.72], [8754, 2, 7, 0.41], [426, 1, 12, 0.31], [59, 3, 13, 0.65], [10815, 3, 7, 2.14], [21808, 1, 4, 0.0], [21789, 2, 4, 0.34], [3899, 3, 4, 0.49], [491, 10, 11, 0.62], [3258, 7, 6, 0.68], [10272, 3, 5, 0.58], [8753, 2, 7, 0.53], [10459, 3, 7, 0.74], [3340, 3, 4, 1.74], [948, 15, 4, 0.25], [2438, 1, 4, 0.52], [10530, 29, 8, 0.81], [824, 1, 4, 0.34], [9829, 3, 4, 0.36], [6575, 3, 4, 0.82], [506, 1, 4, 0.75], [2709, 15, 4, 0.57], [3258, 1, 6, 0.68], [4354, 1, 4, 0.84], [8756, 2, 8, 0.53], [1407, 25, 6, 0.47], [10721, 80, 6, 0.34], [2234, 1, 4, 0.8], [161, 1, 4, 0.69], [11435, 2, 4, 0.37], [13274, 29, 7, 0.61], [13108, 3, 7, 2.14], [3429, 16, 4, 0.39], [2537, 1, 4, 0.47], [2726, 3, 6, 0.97], [3028, 3, 4, 0.3], [19334, 2, 4, 0.34], [23028, 3, 4, 0.61], [11619, 1, 4, 0.57], [13259, 29, 9, 0.0], [21781, 2, 4, 0.34], [12057, 2, 4, 0.76], [5152, 2, 4, 1.14], [3338, 1, 4, 0.43], [1299, 3, 9, 0.55], [13104, 3, 6, 2.11], [3462, 2, 4, 0.61], [13491, 7, 4, 0.91], [23040, 10, 8, 2.24], [21690, 3, 6, 1.04], [4222, 4, 4, 0.89], [11718, 3, 6, 2.21], [21463, 7, 6, 0.58], [11683, 2, 16, 1.48], [5151, 2, 4, 0.76], [11092, 1, 4, 0.29], [4043, 29, 6, 0.44], [1620, 1, 4, 0.42], [10719, 80, 6, 0.47], [21317, 3, 4, 0.34], [9138, 23, 7, 0.69], [95, 3, 18, 0.54], [8637, 3, 6, 1.38], [70, 1, 4, 0.34], [11885, 2, 6, 0.49], [10816, 3, 6, 2.11], [11931, 1, 4, 1.15], [3016, 68, 4, 0.97], [11710, 3, 6, 0.36], [88, 1, 4, 0.61], [13324, 3, 6, 0.33], [2323, 2, 4, 0.63], [13133, 3, 6, 1.36], [10406, 1, 4, 0.61], [3257, 4, 4, 0.91], [4175, 3, 15, 0.87], [22921, 3, 4, 0.95], [149, 2, 4, 0.75], [11887, 2, 6, 0.48], [11090, 1, 4, 0.29], [7120, 3, 4, 0.48], [12497, 3, 6, 0.42], [825, 1, 4, 0.34], [4001, 3, 16, 0.84], [11961, 1, 6, 0.34], [8355, 1, 4, 0.97], [1431, 3, 8, 0.55], [437, 3, 4, 0.45], [9494, 1, 6, 0.61], [6034, 23, 7, 1.03], [11848, 1, 4, 0.5], [21316, 3, 4, 0.34], [12980, 25, 10, 0.42], [10580, 3, 6, 1.72], [19977, 2, 4, 2.06], [11633, 1, 4, 0.35], [4223, 4, 4, 0.59], [20259, 2, 10, 0.42], [11104, 3, 4, 1.72], [9945, 3, 4, 0.41], [12496, 3, 6, 0.42], [21480, 7, 8, 1.01], [21476, 7, 6, 0.88], [11721, 3, 7, 2.14], [13266, 29, 4, 0.56], [10460, 3, 6, 0.74], [5153, 2, 4, 0.34], [2879, 1, 4, 0.51], [12055, 2, 4, 0.76], [9085, 29, 6, 0.76], [1059, 3, 4, 1.05], [2325, 2, 4, 0.62], [8157, 80, 6, 0.76], [10254, 1, 4, 0.49], [10668, 3, 4, 0.46], [11290, 2, 4, 2.6], [6872, 29, 4, 0.39], [11156, 11, 10, 0.32], [8058, 3, 6, 0.9], [1120, 3, 8, 0.36], [72, 1, 4, 0.27], [405, 3, 6, 1.12], [1744, 1, 4, 0.65], [21691, 3, 7, 1.05], [23031, 3, 4, 0.61], [1139, 3, 4, 0.3], [951, 4, 4, 0.47], [12656, 1, 4, 0.91], [4326, 1, 4, 0.59], [11891, 3, 6, 0.68], [11867, 3, 6, 0.52], [790, 2, 4, 0.28], [19686, 1, 4, 0.33], [1853, 1, 4, 0.49], [12430, 3, 4, 0.7], [21481, 7, 7, 0.79], [2318, 2, 4, 0.35], [19964, 25, 4, 0.46], [10719, 29, 4, 0.47], [7250, 3, 4, 0.31], [2916, 1, 4, 0.35], [12917, 3, 4, 0.24], [18, 1, 4, 0.43], [1683, 1, 4, 0.49], [12723, 1, 4, 0.51], [11856, 1, 4, 0.59], [3610, 24, 4, 0.45], [10906, 3, 16, 0.39], [13293, 3, 6, 0.6], [11962, 1, 4, 0.41], [71, 1, 4, 0.38], [6036, 23, 6, 1.03], [12236, 3, 7, 0.29], [13105, 3, 5, 2.11], [19331, 2, 4, 0.31], [9239, 29, 5, 0.47], [9967, 2, 4, 0.83], [8157, 29, 5, 0.76], [21468, 7, 6, 0.56], [6270, 23, 23, 0.29], [1601, 68, 4, 1.11], [11528, 10, 8, 0.3], [11766, 1, 4, 0.56], [20956, 7, 8, 0.62], [2821, 3, 10, 0.77], [10462, 3, 6, 0.74], [12262, 3, 4, 0.26], [12054, 2, 8, 0.76], [470, 1, 4, 0.21], [9910, 29, 6, 0.36], [10083, 23, 11, 0.34], [11412, 29, 4, 0.27], [8286, 1, 4, 0.34], [21820, 2, 4, 0.35], [8945, 1, 7, 0.0], [13273, 29, 6, 0.6], [13106, 3, 6, 2.11], [12594, 7, 4, 0.28], [22922, 3, 4, 0.95], [2308, 25, 4, 0.74], [13244, 1, 25, 0.34], [4232, 29, 4, 0.82], [8896, 1, 4, 0.95], [13258, 25, 6, 0.72], [5343, 1, 5, 0.53], [17, 1, 4, 0.44], [515, 24, 4, 0.38], [2105, 3, 10, 0.33], [3896, 25, 4, 0.65], [11722, 3, 6, 2.47], [9797, 3, 10, 0.59], [10507, 2, 4, 0.37], [22565, 3, 6, 0.83], [13325, 3, 6, 0.5], [11527, 10, 7, 0.3], [13272, 29, 6, 0.58], [1432, 2, 4, 0.0], [11304, 2, 4, 2.6], [949, 10, 4, 0.67], [22571, 1, 4, 0.09], [5341, 16, 4, 0.55], [5110, 1, 4, 0.73], [80, 1, 4, 0.41], [9085, 25, 6, 0.76], [5342, 23, 9, 0.38], [3024, 3, 4, 0.48], [1324, 1, 4, 0.42], [21689, 3, 7, 1.05], [8926, 1, 4, 0.32], [3976, 3, 16, 0.87], [20939, 3, 6, 0.76], [19583, 1, 4, 0.0], [10172, 1, 4, 0.34], [13036, 3, 7, 1.11], [5188, 1, 4, 0.58], [20188, 3, 4, 1.12], [22874, 3, 4, 0.56], [1514, 1, 4, 0.3], [10176, 29, 6, 0.71], [1602, 68, 4, 1.07], [6035, 23, 6, 1.03], [8155, 25, 4, 0.6], [1406, 2, 4, 0.44], [10639, 2, 4, 0.97], [9910, 25, 4, 0.36], [380, 2, 4, 0.15], [10574, 1, 4, 0.6], [426, 15, 4, 0.31], [1407, 2, 4, 0.0], [975, 3, 5, 0.3], [12426, 3, 6, 0.51], [19878, 1, 4, 0.31], [23039, 10, 7, 2.24], [1087, 1, 4, 0.24], [20196, 2, 4, 0.93], [10273, 3, 7, 0.58], [11402, 1, 4, 0.46], [23960, 3, 4, 0.49], [3021, 68, 4, 0.43], [10640, 3, 6, 0.38], [5646, 2, 4, 0.41], [8089, 1, 7, 0.88], [7629, 1, 4, 0.57], [9672, 3, 5, 0.54], [11056, 3, 4, 2.54], [9182, 1, 4, 0.79], [4043, 25, 6, 0.44], [11902, 2, 4, 0.48], [344, 25, 4, 0.53], [8051, 2, 4, 0.43], [12614, 1, 4, 0.47], [12722, 2, 4, 0.77], [9671, 3, 6, 0.54], [3898, 3, 4, 0.5], [3988, 4, 4, 0.78], [7360, 3, 4, 0.39], [10716, 3, 6, 0.27], [12493, 23, 7, 0.3], [13294, 3, 4, 0.6], [9239, 25, 4, 0.47], [9373, 5, 4, 1.15], [10455, 29, 4, 0.27], [5851, 1, 6, 0.37], [9380, 1, 6, 0.38], [12502, 1, 6, 1.07], [10670, 3, 4, 0.45], [3896, 29, 6, 0.65], [13299, 1, 4, 0.6], [21710, 3, 10, 0.55], [8688, 14, 7, 0.54], [2419, 29, 6, 0.48], [23275, 2, 4, 0.54], [8923, 29, 6, 0.34], [6628, 3, 4, 0.44], [2194, 1, 7, 0.26], [11184, 1, 11, 1.65], [3906, 14, 7, 0.57], [12586, 3, 6, 0.68], [12239, 3, 4, 0.26], [3599, 29, 4, 0.0], [590, 16, 4, 0.33], [19685, 1, 4, 0.0], [5452, 1, 4, 0.5], [1120, 1, 6, 0.36], [20966, 3, 4, 1.15], [9209, 29, 4, 0.64], [12249, 14, 5, 0.27], [2287, 25, 6, 0.7], [9150, 23, 6, 0.37], [408, 3, 6, 1.12], [963, 3, 4, 0.73], [12240, 14, 4, 0.27], [1095, 2, 6, 0.35], [5340, 23, 8, 0.4], [11152, 11, 8, 0.37], [2695, 3, 7, 0.5], [3599, 25, 6, 1.78], [2365, 3, 4, 0.57], [1082, 1, 4, 0.79], [12654, 1, 4, 0.91], [10409, 1, 4, 0.59], [9820, 3, 4, 1.04], [11494, 1, 4, 0.37], [24130, 1, 8, 0.34], [12040, 68, 5, 0.39], [10635, 2, 4, 0.97], [20963, 3, 6, 1.15], [22029, 7, 21, 1.04], [11886, 2, 6, 0.55], [2111, 3, 9, 0.38], [9087, 29, 4, 0.8], [5517, 1, 4, 0.6], [3986, 4, 4, 0.7], [19964, 29, 5, 0.46], [9778, 1, 4, 0.57], [10897, 1, 12, 1.09], [19883, 1, 4, 0.32], [21822, 2, 4, 0.36], [20498, 1, 4, 0.0], [8963, 1, 4, 0.54], [22877, 7, 4, 0.57], [22871, 7, 4, 0.55], [12663, 1, 4, 0.29], [109, 4, 4, 0.35], [11154, 11, 9, 0.33], [11055, 3, 4, 2.54], [936, 3, 6, 0.25], [3598, 15, 4, 0.39], [22038, 7, 11, 0.62], [10638, 2, 4, 0.97], [1052, 2, 4, 0.51], [13268, 29, 4, 0.86], [12418, 1, 4, 0.71], [10529, 29, 10, 0.82], [11643, 1, 4, 0.63], [10530, 80, 4, 0.81], [12335, 2, 4, 0.39], [9087, 25, 6, 0.8], [21459, 7, 8, 1.0], [22126, 2, 4, 0.32], [334, 25, 4, 0.17], [10616, 1, 4, 1.04], [3994, 1, 4, 0.29], [3430, 16, 4, 0.61], [12791, 1, 6, 0.44], [3230, 1, 4, 0.47], [23030, 3, 5, 0.58], [354, 2, 4, 0.35], [5812, 3, 6, 0.6], [1743, 1, 4, 0.65], [407, 3, 6, 1.12], [7191, 1, 6, 1.1], [22037, 7, 8, 0.62], [19968, 25, 4, 0.56], [1051, 2, 4, 0.5], [11054, 3, 6, 2.18], [471, 1, 4, 0.33], [6630, 3, 4, 0.51], [13488, 1, 4, 0.68], [11895, 1, 4, 0.29], [791, 2, 4, 0.29], [11659, 3, 4, 0.99], [19965, 25, 4, 0.41], [3908, 7, 9, 0.54], [1409, 15, 4, 0.35], [2859, 16, 4, 0.55], [11581, 29, 18, 0.97], [13037, 3, 4, 1.11], [22920, 1, 4, 0.71], [22321, 1, 4, 0.33], [8281, 2, 4, 1.4], [12924, 1, 4, 0.3], [12056, 2, 4, 0.76], [2507, 2, 4, 0.21], [10080, 3, 4, 0.0], [19343, 2, 4, 0.42], [12658, 1, 4, 1.08], [13259, 25, 4, 1.04], [11779, 1, 10, 1.01], [3670, 2, 8, 1.06], [5577, 3, 4, 1.03], [22236, 1, 4, 0.43], [392, 4, 4, 0.72], [2013, 2, 4, 0.77], [8943, 1, 4, 0.57], [14040, 3, 5, 1.03], [12230, 3, 4, 0.39], [1511, 3, 7, 0.32], [12332, 2, 4, 0.47], [2934, 1, 4, 0.44], [9830, 3, 4, 0.37], [11022, 3, 4, 0.8], [9777, 1, 4, 0.52], [11529, 10, 7, 0.3], [10666, 3, 4, 0.43], [11413, 29, 4, 0.27], [23380, 25, 4, 0.36], [3984, 3, 10, 0.87], [20965, 3, 4, 1.15], [13113, 1, 4, 0.36], [13, 1, 4, 0.37], [1414, 1, 4, 0.42], [2985, 3, 4, 0.6], [12912, 3, 4, 0.31], [2419, 80, 6, 0.48], [6966, 3, 4, 0.91], [1059, 1, 4, 0.0], [21708, 3, 10, 0.67], [5007, 1, 4, 0.46], [426, 16, 4, 0.3], [1706, 25, 4, 0.36], [21088, 7, 7, 0.37], [19965, 29, 4, 0.41], [2103, 16, 4, 0.4], [13114, 1, 4, 0.35], [2099, 2, 4, 0.59], [12508, 1, 4, 0.67], [21010, 2, 7, 0.93], [2326, 2, 4, 0.0], [3392, 1, 4, 0.99], [10279, 3, 4, 1.24], [2168, 3, 4, 0.85], [21707, 3, 9, 0.0], [11894, 2, 4, 0.6], [1742, 1, 4, 0.68], [23038, 10, 7, 1.39], [12923, 1, 4, 0.3], [1055, 2, 4, 0.54], [23796, 2, 9, 0.28], [9613, 1, 4, 0.52], [9841, 1, 4, 0.43], [14029, 3, 4, 0.6], [19581, 1, 4, 0.0], [8023, 1, 4, 0.53], [22125, 2, 4, 0.31], [12364, 3, 6, 1.48], [10278, 3, 4, 0.99], [2108, 1, 4, 0.33], [21003, 2, 4, 0.93], [12379, 1, 4, 1.15], [11857, 1, 4, 0.59], [9154, 23, 6, 0.45], [8931, 2, 4, 1.43], [8085, 1, 4, 0.97], [12585, 3, 4, 0.68], [12913, 3, 4, 0.23], [2100, 25, 4, 0.48], [11339, 3, 4, 0.91], [20952, 3, 4, 0.62], [11057, 3, 4, 2.51], [14039, 3, 6, 0.37], [3053, 3, 4, 0.76], [8361, 1, 4, 0.43], [2418, 29, 5, 0.81], [21482, 7, 4, 0.79], [21745, 2, 4, 0.0], [2196, 25, 4, 0.48], [22708, 1, 4, 0.73], [6356, 2, 4, 0.32], [11322, 3, 4, 0.8], [9781, 1, 4, 0.57], [21091, 7, 4, 0.37], [8923, 25, 6, 0.34], [1648, 1, 4, 0.89], [19330, 1, 4, 0.37], [12871, 1, 4, 1.59], [11213, 4, 4, 1.53], [9084, 3, 4, 0.69], [11155, 11, 8, 0.32], [19344, 2, 4, 0.46], [12635, 2, 4, 0.72], [12613, 1, 4, 0.49], [3429, 1, 4, 0.39], [6360, 10, 8, 0.35], [23962, 3, 4, 0.51], [13109, 3, 7, 2.13], [4372, 1, 4, 0.67], [9611, 12, 4, 0.63], [19969, 25, 4, 0.57], [11215, 1, 4, 0.46], [21461, 7, 9, 1.0], [11559, 29, 8, 0.51], [11226, 1, 4, 0.21], [8188, 10, 8, 0.4], [11327, 3, 4, 0.78], [3551, 3, 4, 0.45], [344, 2, 4, 0.53], [11634, 1, 4, 0.32], [5811, 3, 4, 0.51], [96, 1, 4, 0.0], [21320, 7, 11, 1.0], [7084, 1, 4, 0.0], [3389, 1, 4, 0.97], [19332, 2, 4, 0.4], [12366, 3, 6, 1.5], [2418, 80, 4, 0.81], [973, 1, 4, 0.0], [22884, 3, 6, 0.59], [12334, 2, 4, 0.45], [2161, 1, 4, 0.34], [1053, 729, 4, 0.25], [7362, 3, 4, 0.39], [2935, 1, 4, 0.35], [12952, 21, 4, 1.37], [5849, 1, 4, 0.39], [12162, 2, 4, 0.39], [2188, 2, 8, 0.35], [5852, 1, 4, 0.36], [12930, 2, 4, 0.31], [9485, 2, 4, 0.44], [6967, 3, 4, 1.99], [345, 3, 6, 0.8], [21817, 2, 4, 0.35], [8872, 1, 4, 0.37], [9430, 1, 4, 0.56], [5660, 2, 4, 1.58], [13853, 3, 4, 0.55], [13854, 3, 4, 0.6], [19340, 2, 4, 0.39], [8283, 1, 4, 0.36], [9209, 25, 4, 0.63], [7457, 1, 4, 0.43], [12494, 3, 4, 0.32], [22879, 3, 4, 0.57], [2411, 29, 4, 0.54], [307, 2, 4, 0.59], [12031, 2, 4, 0.82], [21693, 3, 6, 2.14], [1728, 1, 4, 0.58], [858, 1, 4, 0.5], [5666, 2, 6, 0.76], [11105, 3, 4, 0.34], [3989, 3, 10, 0.87], [11157, 1, 4, 0.33], [5368, 3, 4, 0.78], [3987, 3, 9, 0.9], [13855, 3, 4, 0.6], [21319, 7, 12, 1.0], [922, 1, 4, 0.25], [1706, 2, 5, 0.36], [5813, 3, 6, 0.54], [2100, 2, 4, 0.48], [8156, 25, 4, 0.6], [21709, 3, 9, 0.44], [3903, 14, 7, 0.72], [4966, 2, 4, 0.31], [9489, 2, 4, 0.44], [20964, 3, 7, 1.15], [9623, 3, 7, 0.45], [6627, 3, 4, 0.48], [19882, 1, 4, 0.32], [10170, 1, 4, 0.52], [2857, 1, 4, 0.38], [22908, 3, 6, 0.4], [19966, 25, 4, 0.36], [12576, 3, 4, 0.68], [12645, 1, 5, 0.41], [21688, 3, 6, 1.78], [11328, 3, 4, 0.78], [8167, 7, 4, 0.8], [5848, 1, 4, 0.4], [688, 3, 4, 0.46], [21798, 1, 6, 0.45], [13295, 3, 4, 0.6], [12587, 3, 6, 0.68], [2417, 80, 4, 0.73], [3905, 14, 6, 0.0], [214, 1, 4, 0.33], [2190, 1, 4, 0.33], [9149, 2, 4, 0.34], [21454, 2, 4, 0.32], [962, 10, 10, 0.36], [2411, 80, 7, 0.54], [180, 15, 4, 0.51], [11967, 1, 4, 0.37], [2104, 1, 4, 0.37], [11611, 2, 4, 0.54], [2421, 29, 4, 0.37], [8360, 1, 4, 0.43], [19375, 3, 4, 0.31], [2366, 3, 4, 0.58], [3386, 1, 4, 0.95], [5854, 1, 4, 0.33], [13393, 23, 6, 0.28], [11899, 2, 4, 0.43], [11338, 7, 4, 0.63], [3477, 2, 4, 0.61], [11020, 3, 4, 0.79], [10529, 80, 4, 0.82], [22323, 1, 4, 0.35], [14037, 3, 15, 0.26], [11321, 3, 4, 0.81], [12333, 2, 4, 0.46], [11526, 1, 4, 0.27], [1233, 1, 4, 0.4], [21315, 3, 4, 0.34], [12648, 1, 6, 0.95], [21684, 3, 7, 0.82], [21773, 2, 4, 0.36], [9487, 2, 4, 0.44], [13494, 3, 6, 1.14], [11289, 2, 4, 2.6], [10722, 2, 4, 0.32], [12430, 1, 4, 0.71], [336, 16, 4, 0.32], [12029, 2, 4, 0.82], [11635, 1, 4, 0.31], [3961, 1, 4, 0.37], [2743, 3, 4, 0.42], [3609, 24, 4, 1.33], [11559, 80, 4, 0.51], [8280, 2, 6, 1.4], [947, 16, 4, 0.52], [12925, 1, 7, 0.3], [19582, 1, 4, 0.0], [12980, 1, 4, 0.43], [9207, 25, 6, 0.48], [20191, 1, 6, 0.31], [14, 1, 4, 0.35], [8681, 3, 4, 0.36], [10780, 3, 4, 1.56], [3552, 3, 4, 0.45], [12538, 3, 6, 1.15], [21478, 7, 7, 0.67], [10527, 3, 14, 0.33], [333, 25, 6, 0.14], [13257, 29, 7, 0.7], [20958, 3, 4, 0.58], [19361, 23, 6, 0.42], [110, 1, 4, 0.0], [2608, 1, 4, 0.27], [9253, 3, 4, 0.52], [12492, 3, 4, 0.45], [11420, 3, 4, 0.53], [19346, 2, 4, 0.45], [11411, 29, 4, 0.27], [8934, 2, 4, 1.24], [1116, 1, 4, 0.53], [23230, 3, 4, 0.44], [9208, 25, 4, 0.67], [10986, 2, 4, 0.3], [2417, 29, 4, 0.73], [9153, 23, 6, 0.47], [12238, 3, 4, 1.54], [2495, 2, 4, 0.61], [8907, 25, 6, 0.33], [12577, 3, 4, 0.68], [19335, 2, 4, 0.38], [3379, 3, 4, 0.76], [12724, 1, 4, 0.51], [22407, 1, 4, 0.37], [10822, 7, 8, 0.74], [11901, 2, 4, 0.41], [5647, 2, 4, 0.34], [633, 15, 4, 0.0], [22865, 7, 8, 0.51], [21012, 2, 4, 0.93], [11960, 1, 6, 0.28], [12513, 1, 4, 0.51], [19971, 3, 4, 0.51], [11509, 2, 4, 2.06], [61, 1, 4, 0.0], [10994, 2, 4, 0.5], [20190, 3, 4, 1.15], [7673, 7, 11, 0.23], [1722, 2, 4, 0.3], [12030, 2, 4, 0.82], [19366, 2, 4, 0.33], [13490, 1, 4, 0.66], [23494, 3, 4, 0.26], [3553, 3, 4, 0.45], [20198, 2, 4, 0.93], [8944, 1, 4, 0.36], [3915, 15, 4, 0.28], [12024, 2, 4, 1.02], [9608, 1, 4, 0.52], [9486, 2, 4, 0.44], [8189, 10, 7, 0.39], [2859, 1, 4, 0.55], [12588, 3, 4, 0.68], [4926, 12, 6, 0.46], [12630, 10, 6, 0.48], [2287, 29, 4, 0.7], [8907, 29, 4, 0.33], [9342, 2, 6, 1.4], [1513, 3, 7, 0.3], [22706, 1, 4, 0.71], [11687, 1, 4, 0.22], [12458, 1, 4, 1.57], [8155, 2, 4, 0.6], [19982, 2, 4, 0.29], [9480, 2, 4, 0.36], [9488, 2, 4, 0.45], [2406, 80, 8, 0.71], [10175, 1, 4, 0.16], [10414, 1, 4, 0.35], [10985, 2, 4, 0.31], [1619, 1, 4, 0.41], [948, 16, 4, 0.26], [21752, 2, 4, 0.0], [19364, 23, 6, 0.41], [2362, 25, 4, 0.67], [3558, 15, 4, 1.89], [9689, 1, 4, 0.99], [21269, 1, 4, 0.0], [2196, 2, 4, 0.0], [7886, 1, 4, 0.32], [11048, 1, 6, 0.82], [473, 1, 4, 0.24], [12994, 3, 10, 0.4], [9153, 2, 4, 0.45], [12633, 2, 4, 1.3], [23544, 3, 6, 0.53], [1060, 1, 6, 0.0], [5853, 1, 4, 0.37], [23493, 3, 4, 0.26], [11021, 3, 4, 0.79], [23546, 3, 6, 0.5], [11325, 3, 5, 0.78], [9207, 29, 4, 0.49], [334, 2, 4, 0.0], [12250, 14, 4, 0.28], [23380, 29, 4, 0.36], [192, 3, 14, 0.58], [11613, 2, 4, 0.54], [1705, 25, 4, 0.36], [20317, 3, 4, 0.37], [2367, 3, 4, 0.57], [10528, 3, 6, 0.25], [19970, 25, 6, 0.43], [12993, 3, 10, 0.41], [20316, 3, 4, 0.37], [20978, 1, 4, 0.81], [13267, 29, 6, 0.51], [12517, 2, 4, 0.76], [11337, 7, 4, 0.88], [10384, 3, 4, 0.26], [8050, 2, 4, 0.45], [10532, 14, 7, 0.34], [13943, 137, 6, 0.79], [2504, 10, 10, 0.25], [12674, 1, 4, 0.46], [11719, 1, 4, 0.0], [23231, 3, 7, 0.42], [20308, 23, 7, 0.42], [6540, 25, 4, 0.73], [2836, 3, 8, 0.45], [4674, 15, 4, 1.56], [11093, 1, 4, 0.29], [10150, 3, 11, 0.37], [12237, 3, 5, 1.55], [6803, 3, 4, 0.65], [1260, 1, 7, 0.0], [3985, 3, 11, 0.84], [12260, 3, 6, 0.86], [20306, 23, 7, 0.41], [2364, 3, 4, 0.57], [2744, 3, 4, 0.46], [9779, 1, 4, 0.57], [385, 1, 4, 0.99], [12309, 2, 4, 0.64], [11860, 3, 4, 0.5], [19966, 29, 4, 0.36], [8928, 2, 4, 1.43], [10048, 1, 4, 0.34], [13396, 3, 4, 0.27], [2217, 15, 4, 0.97], [9070, 1, 4, 0.33], [8132, 10, 12, 0.32], [2217, 1, 4, 0.96], [13489, 1, 4, 0.68], [19337, 2, 4, 0.43], [11735, 3, 4, 0.57], [3902, 14, 5, 0.0], [21712, 1, 4, 0.35], [20314, 3, 4, 0.37], [12340, 2, 4, 0.66], [3134, 3, 8, 0.4], [9250, 3, 6, 0.99], [5541, 1, 4, 0.34], [9088, 25, 4, 0.45], [9154, 2, 4, 0.43], [12426, 1, 4, 0.5], [23331, 1, 4, 0.37], [948, 1, 4, 0.26], [1512, 3, 6, 0.28], [10149, 1, 4, 0.64], [10396, 3, 4, 0.39], [10667, 3, 4, 0.43], [10898, 1, 6, 0.35], [12232, 3, 4, 0.35], [803, 3, 4, 0.39], [947, 1, 4, 0.52], [23491, 3, 4, 0.26], [20920, 3, 4, 0.53], [19358, 23, 6, 0.43], [13326, 3, 4, 0.34], [8106, 10, 4, 0.55], [8285, 1, 4, 0.4], [1433, 1, 4, 1.39], [8058, 1, 5, 0.9], [19362, 23, 6, 0.42], [8638, 3, 4, 0.63], [3475, 2, 4, 0.75], [22893, 3, 4, 0.64], [2406, 29, 6, 0.71], [10146, 1, 6, 0.34], [11641, 1, 4, 0.63], [3388, 1, 4, 1.39], [10586, 3, 4, 0.43], [13027, 3, 6, 0.97], [19352, 2, 4, 0.4], [10525, 3, 6, 0.64], [4866, 1, 4, 0.41], [19369, 2, 4, 0.31], [3977, 3, 4, 1.08], [4967, 23, 10, 0.36], [1814, 2, 4, 0.32], [12641, 1, 4, 0.54], [2308, 29, 4, 0.74], [6023, 1, 4, 0.46], [2188, 1, 7, 0.36], [5540, 1, 4, 0.33], [8279, 2, 5, 1.4], [8363, 1, 4, 0.41], [12634, 2, 4, 0.0], [19880, 1, 4, 0.32], [62, 1, 6, 0.7], [5652, 2, 4, 0.36], [2055, 1, 4, 0.0], [4927, 12, 6, 0.44], [5111, 1, 4, 0.66], [22590, 1, 4, 0.36], [586, 1, 4, 0.47], [8968, 1, 4, 0.47], [11732, 3, 4, 0.93], [11212, 4, 4, 1.53], [1880, 4, 4, 1.83], [13300, 3, 6, 0.73], [8191, 10, 7, 0.38], [20305, 23, 6, 0.41], [10582, 3, 4, 0.66], [9996, 80, 4, 0.92], [23339, 3, 4, 0.37], [2403, 3, 4, 0.38], [12516, 2, 4, 0.76], [11949, 3, 4, 0.6], [11968, 1, 4, 0.19], [2669, 1, 4, 1.14], [512, 24, 4, 2.04], [23961, 1, 4, 0.52], [23920, 2, 4, 0.66], [21946, 1, 4, 0.23], [21686, 1, 4, 0.0], [10413, 1, 4, 0.0], [24127, 3, 6, 0.38], [11485, 1, 4, 0.0], [1070, 7, 8, 0.7], [22891, 3, 6, 0.4], [9088, 29, 4, 0.45], [2222, 10, 6, 0.41], [8660, 1, 4, 0.48], [</t>
   </si>
 </sst>
 </file>

--- a/QD_upload.xlsx
+++ b/QD_upload.xlsx
@@ -14,9 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
-  <si>
-    <t>warehouse_id</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>Tag ID</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Start Date/Time</t>
+  </si>
+  <si>
+    <t>End Date/Time</t>
   </si>
   <si>
     <t>Discounts Group 1</t>
@@ -25,115 +34,19 @@
     <t>Discounts Group 2</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>[[2778, 2, 5, 0.57], [6935, 2, 7, 1.44], [6936, 2, 5, 1.44], [8672, 2, 5, 0.46], [145, 2, 4, 0.42], [2775, 2, 4, 0.5], [2776, 2, 4, 0.8], [146, 2, 4, 0.41], [2327, 2, 5, 0.63], [143, 2, 4, 0.45], [8853, 2, 5, 1.38], [11838, 2, 5, 0.42], [616, 2, 4, 0.46], [12721, 2, 5, 0.47], [2328, 2, 5, 0.39], [2049, 3, 8, 0.45], [11681, 2, 5, 2.33], [362, 2, 4, 0.73], [5493, 2, 4, 0.45], [1124, 2, 5, 0.38], [8650, 2, 5, 1.27], [141, 2, 4, 0.68], [205, 2, 4, 0.47], [11835, 2, 4, 0.52], [2497, 2, 4, 0.36], [11837, 2, 4, 0.46], [8648, 2, 4, 0.96], [3670, 2, 5, 1.6], [3, 2, 5, 0.45], [417, 2, 4, 0.59], [8673, 2, 5, 0.49], [2774, 2, 4, 0.51], [624, 2, 4, 0.47], [6097, 80, 4, 1.41], [206, 2, 4, 0.56], [6497, 1, 4, 1.38], [11836, 2, 4, 0.5], [2057, 3, 5, 0.35], [22247, 2, 5, 0.51], [523, 2, 4, 0.4], [990, 2, 4, 0.41], [593, 2, 5, 0.66], [326, 2, 5, 0.42], [8674, 2, 4, 0.62], [11739, 2, 4, 1.65], [10993, 2, 4, 0.52], [6494, 1, 4, 0.69], [6098, 80, 4, 0.58], [336, 15, 4, 0.67], [60, 3, 6, 1.26], [6097, 29, 4, 1.42], [944, 15, 4, 0.41], [3674, 2, 5, 0.54], [214, 3, 9, 0.49], [1413, 15, 4, 0.39], [3429, 15, 4, 0.37], [411, 2, 4, 0.56], [2422, 80, 4, 0.79], [13260, 29, 4, 0.48], [412, 1, 4, 0.56], [1492, 1, 4, 0.83], [346, 3, 5, 0.5], [346, 1, 4, 0.49], [21712, 3, 13, 0.67], [13033, 3, 5, 1.21], [88, 10, 8, 0.83], [151, 1, 4, 0.85], [9998, 80, 4, 1.31], [1007, 2, 5, 0.38], [10149, 3, 13, 0.55], [1243, 2, 4, 1.18], [6496, 1, 4, 0.87], [11738, 2, 4, 0.87], [435, 2, 4, 0.54], [20252, 2, 4, 0.53], [307, 2, 4, 0.39], [8943, 3, 4, 1.27], [229, 1, 4, 1.12], [186, 3, 9, 0.5], [2422, 29, 4, 0.75], [1163, 3, 4, 0.58], [22558, 3, 5, 0.45], [12269, 2, 4, 0.76], [8944, 3, 4, 0.84], [964, 15, 4, 0.44], [418, 2, 4, 0.73], [963, 3, 4, 0.36], [2821, 3, 8, 0.63], [10407, 10, 7, 1.56], [1490, 1, 4, 0.49], [21713, 3, 8, 0.46], [416, 1, 4, 0.57], [71, 15, 4, 0.51], [6098, 29, 4, 0.58], [13258, 29, 4, 1.31], [2438, 1, 4, 0.71], [8938, 2, 4, 0.49], [5940, 3, 4, 0.87], [5490, 2, 4, 0.49], [5208, 3, 5, 0.48], [1548, 1, 4, 0.45], [20255, 2, 4, 0.51], [21793, 1, 4, 0.66], [1414, 15, 4, 0.43], [13259, 29, 4, 0.98], [2421, 80, 5, 0.37], [10406, 10, 7, 1.73], [432, 3, 4, 0.42], [1413, 16, 4, 0.4], [3478, 2, 4, 0.9], [9784, 1, 4, 0.49], [13023, 3, 6, 0.73], [10408, 10, 6, 1.46], [22125, 2, 4, 0.36], [11404, 2, 4, 0.96], [410, 1, 4, 0.5], [2703, 3, 4, 0.52], [12229, 2, 4, 0.76], [11490, 1, 4, 0.49], [8943, 1, 4, 1.32], [11844, 2, 5, 0.51], [11690, 2, 4, 0.39], [21781, 2, 4, 0.47], [140, 2, 4, 0.39], [12870, 1, 4, 1.55], [7036, 1, 4, 0.87], [5976, 1, 4, 0.59], [5939, 3, 4, 0.5], [10411, 10, 6, 1.52], [10410, 10, 6, 1.56], [13258, 25, 4, 1.32], [424, 11, 9, 0.46], [413, 1, 4, 0.47], [2778, 2, 211, 2.86], [6935, 2, 381, 5.09], [6936, 2, 381, 5.12], [8672, 2, 392, 2.4], [145, 2, 204, 2.28], [2775, 2, 211, 2.44], [2776, 2, 211, 3.02], [146, 2, 204, 2.26], [2327, 2, 205, 2.59], [143, 2, 198, 2.34], [8853, 2, 381, 4.19], [11838, 2, 356, 2.23], [616, 2, 149, 2.36], [12721, 2, 390, 2.83], [2328, 2, 205, 2.71], [2049, 3, 359, 2.26], [11681, 2, 369, 6.0], [362, 2, 192, 2.98], [5493, 2, 148, 2.36], [1124, 2, 253, 2.33], [8650, 2, 308, 3.71], [141, 2, 211, 2.79], [205, 2, 147, 2.39], [11835, 2, 356, 2.49], [2497, 2, 277, 2.16], [11837, 2, 360, 2.37], [8648, 2, 308, 3.32], [3670, 2, 330, 4.65], [3, 2, 164, 2.27], [417, 2, 211, 2.62], [8673, 2, 389, 3.83], [2774, 2, 277, 2.46], [624, 2, 149, 2.39], [6097, 80, 93, 4.26], [206, 2, 147, 2.55], [6497, 1, 50, 4.13], [11836, 2, 360, 2.44], [2057, 3, 410, 1.97], [22247, 2, 390, 2.39], [523, 2, 211, 2.55], [990, 2, 71, 2.28], [593, 2, 312, 2.65], [326, 2, 126, 2.23], [8674, 2, 392, 2.68], [10993, 2, 74, 2.94], [6494, 1, 68, 4.36], [6098, 80, 102, 3.44], [336, 15, 156, 2.76], [60, 3, 1086, 4.41], [6097, 29, 47, 4.28], [944, 15, 59, 2.27], [3674, 2, 345, 2.43], [214, 3, 917, 2.38], [1413, 15, 134, 2.24], [3429, 15, 45, 2.06], [411, 2, 147, 2.55], [2422, 80, 249, 4.47], [13260, 29, 98, 2.41], [412, 1, 114, 2.55], [1492, 1, 51, 3.09], [346, 3, 857, 2.36], [346, 1, 214, 2.43], [21712, 3, 2937, 2.67], [13033, 3, 801, 3.62], [88, 10, 770, 2.97], [151, 1, 90, 3.12], [9998, 80, 161, 4.08]]</t>
-  </si>
-  <si>
-    <t>[[141, 2, 4, 0.68], [2328, 2, 5, 0.39], [8650, 2, 5, 1.27], [362, 2, 4, 0.73], [5493, 2, 4, 0.42], [2327, 2, 5, 0.63], [8672, 2, 5, 0.58], [11685, 2, 5, 1.87], [1124, 2, 5, 0.43], [6935, 2, 7, 1.2], [11681, 2, 5, 2.33], [205, 2, 4, 0.52], [8648, 2, 4, 0.96], [6936, 2, 5, 1.2], [11837, 2, 4, 0.55], [248, 1, 4, 0.6], [206, 2, 4, 0.65], [2049, 3, 8, 0.45], [1446, 2, 4, 0.83], [12721, 2, 5, 0.47], [2778, 2, 5, 0.39], [523, 2, 4, 0.4], [615, 2, 4, 0.37], [9507, 3, 4, 0.68], [8676, 2, 5, 0.46], [11739, 2, 4, 1.7], [22247, 2, 5, 0.57], [10574, 3, 6, 1.26], [145, 2, 4, 0.44], [412, 1, 4, 0.54], [59, 3, 5, 0.4], [413, 1, 4, 0.52], [146, 2, 4, 0.43], [76, 2, 4, 1.19], [8938, 2, 4, 1.47], [143, 2, 4, 0.45], [21793, 1, 4, 0.48], [1429, 2, 4, 0.35], [411, 2, 4, 0.65], [8674, 2, 4, 0.49], [11836, 2, 4, 0.38], [6158, 2, 8, 0.39], [990, 2, 4, 0.41], [3495, 3, 13, 0.63], [10149, 3, 13, 0.55], [8673, 2, 5, 0.49], [8939, 2, 4, 0.44], [75, 2, 4, 0.39], [151, 1, 4, 0.85], [144, 2, 4, 0.36], [1504, 2, 5, 0.52], [3848, 2, 4, 0.56], [12373, 1, 6, 0.86], [418, 2, 4, 0.73], [2859, 15, 4, 0.47], [20252, 2, 4, 0.49], [7084, 3, 4, 0.44], [10993, 2, 4, 0.61], [21798, 1, 4, 0.43], [416, 1, 4, 0.54], [11234, 2, 5, 0.63], [9784, 1, 4, 0.49], [88, 10, 8, 1.04], [2424, 80, 5, 0.99], [13034, 3, 5, 1.21], [11808, 1, 4, 0.36], [6494, 1, 4, 0.69], [2423, 80, 5, 0.47], [13928, 1, 4, 0.69], [20927, 1, 4, 0.95], [12526, 2, 4, 0.93], [11844, 2, 5, 0.51], [11811, 1, 4, 0.76], [7004, 1, 4, 0.49], [60, 3, 6, 1.26], [414, 1, 4, 0.51], [11159, 1, 5, 1.76], [11089, 1, 4, 0.45], [3, 2, 5, 0.51], [410, 1, 4, 0.5], [1414, 15, 4, 0.43], [3429, 15, 4, 0.37], [11770, 1, 4, 0.66], [11489, 1, 4, 0.54], [2424, 29, 4, 1.0], [6952, 1, 4, 0.49], [11490, 1, 4, 0.46], [2423, 29, 4, 0.5], [13023, 3, 6, 0.73], [11953, 1, 4, 0.38], [345, 3, 5, 0.87], [5208, 3, 5, 0.48], [11161, 1, 5, 0.49], [2331, 1, 4, 0.55], [1492, 1, 4, 0.83], [10407, 10, 7, 1.56], [950, 1, 4, 1.12], [8274, 3, 4, 0.81], [6098, 80, 4, 0.58], [11504, 2, 4, 0.52], [11954, 1, 4, 0.55], [3430, 15, 4, 0.64], [1339, 3, 10, 1.11], [6497, 1, 4, 1.38], [432, 3, 4, 0.42], [9342, 2, 5, 0.49], [6097, 80, 4, 1.41], [9126, 1, 4, 0.48], [11674, 1, 4, 0.98], [5584, 3, 4, 1.44], [22558, 3, 5, 0.45], [944, 15, 4, 0.41], [10410, 10, 6, 1.56], [10409, 10, 7, 1.67], [20259, 2, 4, 0.47], [11677, 1, 5, 1.14], [9690, 1, 4, 0.47], [22317, 3, 5, 0.51], [9358, 1, 4, 1.22], [9082, 3, 17, 0.83], [8945, 3, 5, 0.47], [10897, 1, 8, 0.38], [952, 4, 4, 2.15], [1413, 15, 4, 0.39], [20555, 2, 4, 0.92], [10406, 10, 7, 1.73], [1414, 16, 4, 0.43], [11485, 24, 4, 0.9], [7708, 2, 4, 0.48], [10408, 10, 6, 1.46], [20196, 2, 4, 0.9], [10516, 3, 5, 0.51], [11491, 2, 4, 0.74], [141, 2, 211, 2.79], [2328, 2, 205, 2.71], [8650, 2, 308, 3.71], [362, 2, 192, 2.98], [5493, 2, 148, 2.29], [2327, 2, 205, 2.59], [8672, 2, 391, 2.63], [11685, 2, 371, 5.58], [1124, 2, 255, 2.43], [6935, 2, 382, 4.47], [11681, 2, 369, 6.0], [205, 2, 147, 2.48], [8648, 2, 308, 3.32], [6936, 2, 382, 4.51], [11837, 2, 362, 2.53], [248, 1, 74, 3.02], [206, 2, 147, 2.73], [2049, 3, 359, 2.26], [1446, 2, 181, 3.06], [12721, 2, 389, 2.82], [2778, 2, 213, 2.41], [523, 2, 211, 2.55], [615, 2, 149, 2.2], [8676, 2, 391, 2.3], [22247, 2, 389, 2.48], [10574, 3, 675, 3.97], [145, 2, 204, 2.34], [412, 1, 114, 2.51], [59, 3, 569, 2.18], [413, 1, 118, 2.48], [146, 2, 204, 2.32], [76, 2, 148, 3.76], [143, 2, 198, 2.34], [21793, 1, 320, 2.41], [1429, 2, 207, 2.17], [411, 2, 147, 2.73], [8674, 2, 391, 2.94], [11836, 2, 362, 2.22], [6158, 2, 356, 2.18], [990, 2, 71, 2.28], [3495, 3, 1311, 2.61], [10149, 3, 1220, 2.46], [8673, 2, 389, 3.83], [8939, 2, 259, 2.34], [75, 2, 199, 2.24], [151, 1, 90, 3.12], [144, 2, 204, 2.18], [1504, 2, 283, 2.52], [3848, 2, 229, 2.57], [12373, 1, 738, 3.22], [418, 2, 192, 2.9], [2859, 15, 93, 2.4], [20252, 2, 126, 2.42], [7084, 3, 175, 3.3], [10993, 2, 74, 3.03], [21798, 1, 187, 2.32], [416, 1, 118, 2.52], [11234, 2, 249, 2.74], [9784, 1, 98, 2.43], [88, 10, 766, 3.36], [2424, 80, 232, 3.22], [13034, 3, 801, 3.62], [11808, 1, 650, 2.16], [6494, 1, 68, 4.36], [2423, 80, 250, 3.26], [13928, 1, 65, 2.81], [20927, 1, 40, 2.96]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 8, 0.97], [362, 2, 4, 0.55], [141, 2, 4, 0.63], [205, 2, 4, 0.74], [2778, 2, 5, 0.58], [1776, 1, 4, 2.62], [593, 2, 5, 0.5], [6936, 2, 5, 0.97], [1007, 2, 6, 0.38], [305, 2, 4, 1.25], [2328, 2, 5, 0.4], [206, 2, 4, 0.65], [7886, 4, 5, 0.41], [8648, 2, 5, 0.79], [151, 1, 4, 0.74], [8672, 2, 6, 0.45], [88, 10, 8, 0.91], [83, 2, 4, 0.45], [8650, 2, 4, 1.28], [5151, 2, 4, 1.74], [248, 1, 4, 0.37], [412, 1, 4, 0.65], [990, 2, 4, 0.54], [11681, 2, 5, 2.55], [2050, 3, 5, 0.41], [76, 2, 4, 1.05], [1777, 1, 4, 0.82], [10149, 3, 15, 1.81], [146, 2, 4, 0.51], [2057, 3, 5, 1.15], [21798, 1, 4, 0.41], [5005, 1, 4, 0.38], [3478, 2, 4, 0.71], [346, 1, 4, 0.52], [45, 2, 4, 1.42], [413, 1, 4, 0.54], [6158, 2, 5, 0.39], [74, 1, 4, 1.41], [335, 3, 10, 0.37], [7036, 1, 4, 1.32], [1446, 2, 4, 0.48], [167, 3, 5, 0.49], [1429, 2, 4, 0.53], [168, 3, 5, 0.82], [7084, 3, 4, 0.39], [22247, 2, 5, 0.53], [21793, 1, 5, 0.71], [3495, 3, 13, 0.53], [5081, 2, 4, 0.35], [308, 1, 4, 0.77], [13028, 3, 4, 0.38], [84, 2, 4, 0.36], [96, 11, 14, 0.46], [12870, 1, 4, 1.16], [8649, 2, 4, 0.64], [3889, 1, 4, 0.81], [10825, 21, 8, 0.48], [418, 2, 4, 0.52], [23, 1, 4, 1.04], [1492, 1, 4, 0.48], [94, 4, 4, 1.08], [410, 1, 4, 0.99], [3893, 1, 4, 0.53], [1504, 2, 5, 0.5], [145, 2, 4, 0.35], [11737, 2, 4, 0.48], [3891, 1, 4, 0.53], [1490, 1, 4, 0.43], [25, 1, 4, 0.38], [1654, 2, 4, 0.41], [8853, 2, 5, 1.11], [22179, 1, 4, 0.47], [95, 3, 13, 0.42], [9827, 3, 4, 0.5], [415, 1, 4, 0.44], [1656, 2, 4, 0.41], [12721, 2, 6, 0.49], [5086, 1, 4, 1.08], [411, 2, 4, 0.65], [229, 1, 4, 1.2], [11954, 1, 4, 0.49], [8651, 2, 4, 1.16], [432, 3, 5, 0.41], [20256, 2, 4, 0.39], [346, 3, 5, 0.52], [11914, 1, 4, 0.62], [950, 1, 4, 0.4], [7567, 3, 4, 1.11], [997, 2, 4, 0.46], [11811, 1, 5, 0.37], [11767, 1, 4, 0.46], [998, 2, 4, 0.45], [9829, 3, 4, 0.37], [5660, 2, 4, 0.75], [1070, 7, 8, 0.49], [9372, 1, 4, 1.58], [5209, 3, 5, 0.37], [8898, 3, 5, 1.89], [35, 1, 4, 0.38], [8926, 1, 4, 1.2], [9691, 1, 4, 0.48], [5584, 3, 4, 1.55], [1413, 15, 4, 0.46], [11490, 1, 4, 0.43], [336, 15, 4, 0.65], [2775, 2, 4, 0.53], [6097, 29, 4, 1.29], [307, 2, 4, 0.58], [24, 1, 4, 0.38], [12661, 1, 4, 0.88], [8945, 3, 5, 0.84], [11808, 1, 5, 0.36], [82, 2, 4, 0.43], [434, 2, 4, 0.42], [5005, 3, 6, 0.48], [11491, 2, 4, 0.67], [27, 1, 4, 0.38], [97, 11, 13, 0.71], [2104, 3, 7, 0.58], [66, 1, 4, 0.68], [8104, 1, 4, 0.44], [424, 11, 9, 0.36], [2322, 2, 4, 0.46], [2109, 3, 9, 0.47], [6098, 80, 4, 0.58], [6097, 80, 4, 1.28], [952, 4, 4, 2.07], [3980, 4, 5, 1.31], [6098, 29, 4, 0.58], [20255, 2, 4, 0.4], [1414, 15, 4, 0.46], [996, 2, 4, 0.43], [11489, 1, 4, 0.46], [6935, 2, 327, 3.57], [362, 2, 163, 2.05], [141, 2, 180, 2.21], [205, 2, 126, 2.43], [2778, 2, 181, 2.01], [1776, 1, 127, 6.0], [593, 2, 266, 2.21], [6936, 2, 327, 3.73], [1007, 2, 313, 1.69], [305, 2, 101, 3.23], [2328, 2, 175, 1.7], [206, 2, 126, 2.25], [7886, 4, 166, 1.72], [8648, 2, 263, 2.39], [151, 1, 77, 2.41], [8672, 2, 334, 1.83], [88, 10, 657, 2.87], [83, 2, 62, 1.86], [8650, 2, 263, 3.46], [5151, 2, 28, 4.82], [248, 1, 63, 2.3], [412, 1, 96, 2.84], [990, 2, 60, 2.03], [11681, 2, 314, 5.48], [2050, 3, 555, 1.72], [76, 2, 126, 3.08], [1777, 1, 130, 2.57], [10149, 3, 1002, 4.53], [146, 2, 174, 1.98], [2057, 3, 222, 2.64], [21798, 1, 161, 1.79], [5005, 1, 155, 1.72], [3478, 2, 87, 2.86], [346, 1, 183, 1.99], [45, 2, 128, 3.79], [413, 1, 100, 2.03], [6158, 2, 309, 1.77], [74, 1, 236, 3.77], [335, 3, 1555, 2.34], [7036, 1, 149, 3.54], [1446, 2, 177, 2.3], [167, 3, 265, 1.85], [1429, 2, 177, 2.01], [168, 3, 471, 2.44], [7084, 3, 152, 1.74], [22247, 2, 332, 2.04], [21793, 1, 272, 2.26], [3495, 3, 1118, 1.95], [5081, 2, 222, 1.67], [308, 1, 193, 3.85], [13028, 3, 171, 2.07], [84, 2, 78, 1.69], [96, 11, 966, 1.83], [12870, 1, 163, 3.23], [8649, 2, 263, 2.24], [3889, 1, 144, 2.56], [10825, 21, 735, 1.91], [418, 2, 163, 1.99], [23, 1, 128, 2.99], [1492, 1, 44, 1.92], [94, 4, 139, 4.19], [410, 1, 49, 2.52], [3893, 1, 144, 2.28], [1504, 2, 237, 1.88], [145, 2, 174, 2.85], [11737, 2, 66, 1.91], [3891, 1, 144, 2.28]]</t>
-  </si>
-  <si>
-    <t>[[88, 10, 8, 0.93], [8915, 2, 5, 0.6], [6935, 2, 5, 2.61], [2778, 2, 4, 0.51], [305, 2, 4, 0.5], [2328, 2, 4, 0.52], [615, 2, 4, 0.38], [616, 2, 4, 0.38], [6936, 2, 5, 2.61], [8650, 2, 4, 0.57], [8648, 2, 4, 0.96], [2049, 3, 6, 0.45], [7004, 1, 4, 0.39], [2775, 2, 4, 0.51], [7036, 1, 4, 1.13], [1124, 2, 5, 0.38], [3840, 1, 4, 0.44], [205, 2, 4, 0.47], [94, 4, 4, 1.41], [151, 1, 4, 0.74], [990, 2, 4, 0.46], [3893, 1, 4, 1.18], [8853, 2, 4, 1.78], [2776, 2, 4, 0.51], [3891, 1, 4, 1.18], [206, 2, 4, 0.56], [362, 2, 4, 0.74], [141, 2, 4, 0.58], [11404, 2, 4, 0.6], [3889, 1, 4, 1.18], [10574, 3, 5, 1.36], [2497, 2, 4, 0.53], [11234, 2, 4, 1.1], [8649, 2, 4, 0.48], [1007, 2, 5, 0.39], [11681, 2, 5, 1.6], [7005, 1, 4, 0.4], [12870, 1, 4, 0.61], [10149, 3, 10, 0.62], [145, 2, 4, 0.47], [7084, 3, 4, 0.44], [10993, 2, 4, 0.7], [20927, 1, 4, 0.35], [214, 3, 9, 0.4], [248, 1, 4, 0.56], [21793, 1, 4, 0.82], [3980, 4, 5, 1.23], [5165, 1, 4, 1.66], [346, 3, 4, 0.5], [2436, 4, 4, 0.48], [3, 2, 4, 0.47], [997, 2, 4, 1.5], [998, 2, 4, 0.62], [972, 3, 5, 0.51], [8672, 2, 5, 0.44], [2424, 80, 5, 1.08], [9372, 1, 4, 1.56], [229, 1, 4, 1.03], [11953, 1, 4, 0.42], [417, 2, 4, 0.89], [5165, 2, 6, 1.65], [3495, 3, 10, 0.56], [6158, 2, 5, 1.78], [957, 2, 4, 1.04], [1006, 2, 4, 0.56], [8651, 2, 4, 0.79], [11770, 1, 4, 0.64], [9, 1, 4, 0.97], [74, 1, 4, 1.29], [142, 2, 4, 0.44], [6497, 1, 4, 1.1], [11954, 1, 4, 0.51], [5434, 1, 4, 0.48], [3982, 3, 9, 0.97], [12229, 2, 4, 0.48], [5076, 1, 4, 0.41], [11952, 1, 4, 0.69], [9082, 3, 19, 0.83], [9491, 21, 10, 0.44], [2774, 2, 4, 0.48], [335, 3, 8, 0.37], [523, 2, 4, 0.47], [2423, 80, 4, 0.62], [823, 1, 4, 0.65], [12721, 2, 4, 0.57], [346, 1, 4, 0.5], [3981, 3, 10, 1.15], [10407, 10, 7, 1.56], [1339, 3, 10, 1.23], [1492, 1, 4, 0.64], [6496, 1, 4, 0.87], [4032, 29, 4, 0.47], [5584, 3, 4, 1.71], [5946, 1, 4, 0.46], [10388, 2, 4, 0.37], [2438, 2, 5, 0.53], [2424, 29, 4, 1.1], [11813, 1, 4, 0.37], [96, 11, 13, 0.71], [3900, 3, 4, 1.26], [8943, 3, 4, 1.27], [12526, 2, 4, 1.53], [11179, 1, 4, 0.48], [4253, 1, 4, 0.47], [71, 15, 4, 0.58], [12764, 2, 5, 0.52], [6097, 80, 4, 1.25], [3429, 15, 4, 0.37], [13893, 2, 4, 0.53], [3975, 4, 4, 1.2], [8898, 3, 4, 1.41], [22317, 3, 4, 0.45], [412, 1, 4, 0.64], [11236, 2, 4, 0.49], [972, 1, 4, 0.47], [432, 3, 4, 0.42], [10410, 10, 9, 1.52], [6489, 11, 23, 1.25], [11504, 2, 4, 0.49], [1243, 2, 4, 1.62], [10386, 2, 4, 1.11], [76, 2, 4, 1.02], [8676, 2, 4, 0.49], [12212, 29, 4, 0.53], [11490, 1, 4, 0.44], [11164, 1, 4, 1.98], [10093, 3, 9, 1.12], [11235, 2, 4, 0.65], [21712, 3, 13, 0.67], [8274, 3, 4, 0.36], [10408, 10, 6, 1.62], [22247, 2, 4, 0.6], [9690, 1, 4, 0.37], [88, 10, 745, 3.4], [8915, 2, 252, 2.39], [6935, 2, 365, 6.0], [2778, 2, 206, 2.34], [305, 2, 191, 3.24], [2328, 2, 199, 2.35], [615, 2, 144, 2.08], [616, 2, 144, 2.08], [6936, 2, 365, 5.95], [8650, 2, 298, 2.44], [8648, 2, 298, 3.18], [2049, 3, 434, 2.23], [7004, 1, 53, 1.91], [2775, 2, 206, 2.34], [7036, 1, 169, 3.59], [1124, 2, 245, 3.18], [3840, 1, 225, 2.19], [205, 2, 142, 2.25], [94, 4, 159, 4.14], [151, 1, 87, 2.77], [990, 2, 69, 2.24], [3893, 1, 164, 3.61], [8853, 2, 365, 4.84], [2776, 2, 206, 2.34], [3891, 1, 164, 3.61], [206, 2, 142, 2.42], [362, 2, 185, 2.77], [141, 2, 204, 3.2], [11404, 2, 52, 2.56], [3889, 1, 164, 3.61], [10574, 3, 662, 4.03], [2497, 2, 269, 2.36], [11234, 2, 240, 3.46], [8649, 2, 298, 2.27], [1007, 2, 179, 1.84], [11681, 2, 351, 5.24], [7005, 1, 53, 1.92], [12870, 1, 185, 2.52], [10149, 3, 1181, 2.49], [145, 2, 198, 2.24], [7084, 3, 170, 2.2], [10993, 2, 72, 2.99], [20927, 1, 66, 1.91], [214, 3, 893, 2.07], [248, 1, 71, 2.83], [21793, 1, 309, 2.92], [3980, 4, 629, 3.77], [5165, 1, 62, 4.6], [346, 3, 830, 2.29], [2436, 4, 149, 3.89], [3, 2, 159, 2.25], [997, 2, 311, 4.24], [998, 2, 311, 2.55], [972, 3, 783, 2.24], [8672, 2, 377, 2.12], [2424, 80, 225, 3.26], [9372, 1, 308, 4.4], [229, 1, 108, 4.51], [11953, 1, 266, 2.16], [417, 2, 204, 3.06], [5165, 2, 499, 4.61], [3495, 3, 1269, 2.35], [6158, 2, 171, 4.29], [957, 2, 133, 4.34], [1006, 2, 301, 2.42], [8651, 2, 298, 2.87], [11770, 1, 285, 2.58]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 7, 0.64], [141, 2, 4, 0.55], [2778, 2, 5, 0.7], [362, 2, 4, 1.06], [6936, 2, 6, 0.62], [8648, 2, 4, 1.04], [8650, 2, 4, 0.52], [11681, 2, 10, 2.55], [2328, 2, 4, 0.57], [205, 2, 4, 0.5], [1446, 2, 4, 0.4], [2049, 3, 7, 0.38], [8649, 2, 4, 1.28], [2775, 2, 4, 1.06], [8853, 2, 5, 0.47], [361, 2, 4, 0.66], [2776, 2, 4, 1.06], [3840, 1, 4, 0.39], [1429, 2, 4, 0.51], [523, 2, 4, 0.8], [7036, 1, 4, 1.0], [206, 2, 4, 0.44], [9507, 3, 4, 0.68], [413, 1, 4, 0.37], [159, 3, 6, 0.48], [151, 1, 4, 0.85], [412, 1, 4, 0.71], [1124, 2, 5, 0.39], [990, 2, 4, 0.85], [11581, 29, 5, 0.48], [615, 2, 4, 0.39], [5165, 1, 4, 1.37], [21793, 1, 4, 0.86], [417, 2, 4, 0.8], [9372, 1, 4, 1.67], [6097, 80, 4, 1.54], [248, 1, 4, 0.37], [20258, 2, 4, 0.71], [142, 2, 4, 0.8], [616, 2, 4, 0.5], [21798, 1, 4, 0.43], [6952, 1, 4, 1.14], [11234, 2, 5, 0.38], [8089, 1, 4, 1.24], [3670, 2, 5, 0.63], [76, 2, 4, 1.08], [5165, 2, 7, 1.38], [3891, 1, 4, 0.75], [10574, 3, 5, 1.09], [345, 3, 4, 0.92], [2424, 80, 4, 1.27], [7084, 3, 4, 1.0], [6097, 29, 4, 1.54], [3893, 1, 4, 0.62], [10993, 2, 4, 0.75], [346, 3, 4, 0.82], [3334, 5, 4, 1.05], [11671, 1, 4, 0.42], [1886, 2, 4, 0.48], [1654, 2, 4, 0.44], [11089, 1, 4, 0.58], [10517, 29, 4, 0.91], [11504, 2, 4, 0.55], [2423, 80, 4, 0.63], [6098, 80, 4, 1.0], [11953, 1, 4, 0.38], [11769, 1, 4, 0.36], [5151, 2, 4, 1.54], [11952, 1, 4, 0.38], [11491, 2, 4, 0.53], [20256, 2, 4, 0.5], [432, 3, 4, 0.62], [13244, 1, 4, 0.42], [995, 2, 4, 1.57], [1490, 1, 4, 0.75], [2424, 29, 4, 1.24], [418, 2, 4, 1.01], [11737, 2, 4, 0.43], [4032, 29, 4, 0.49], [3, 2, 4, 0.41], [6494, 1, 4, 0.69], [411, 2, 4, 0.49], [972, 3, 5, 0.47], [20252, 2, 4, 0.56], [1700, 2, 4, 0.66], [2160, 68, 4, 0.37], [11426, 25, 4, 0.9], [6158, 2, 5, 0.43], [229, 1, 4, 0.55], [147, 1, 4, 1.15], [13028, 3, 4, 2.88], [11772, 1, 4, 0.46], [416, 1, 4, 0.46], [1413, 15, 4, 0.4], [346, 1, 4, 0.83], [13034, 3, 5, 0.85], [8286, 2, 5, 0.38], [10149, 3, 15, 0.49], [10, 2, 4, 0.41], [1703, 2, 4, 0.5], [2805, 137, 4, 0.47], [2331, 1, 4, 1.9], [12304, 1, 4, 0.74], [11767, 1, 4, 0.39], [75, 2, 4, 0.5], [414, 1, 4, 0.37], [11813, 1, 4, 0.47], [3575, 25, 4, 0.52], [11814, 1, 4, 0.48], [11490, 1, 4, 0.46], [1701, 2, 4, 1.22], [3577, 25, 4, 0.55], [9784, 1, 4, 0.4], [11586, 1, 6, 1.11], [159, 1, 4, 0.43], [12764, 2, 7, 0.52], [13280, 1, 4, 0.69], [410, 1, 4, 0.53], [12979, 25, 8, 0.72], [2438, 2, 6, 0.53], [9998, 80, 4, 1.52], [4253, 1, 4, 0.44], [11585, 29, 4, 1.17], [5209, 3, 5, 0.37], [950, 1, 4, 0.8], [3478, 2, 4, 0.51], [13893, 2, 4, 1.18], [6098, 29, 4, 1.0], [439, 1, 4, 1.5], [9491, 21, 8, 0.44], [12526, 2, 4, 0.56], [5005, 3, 5, 0.45], [12269, 2, 4, 1.2], [6935, 2, 334, 4.03], [141, 2, 187, 2.25], [2778, 2, 187, 2.42], [362, 2, 170, 3.22], [6936, 2, 334, 4.03], [8648, 2, 272, 3.2], [8650, 2, 272, 2.18], [11681, 2, 327, 6.0], [2328, 2, 182, 2.29], [205, 2, 132, 2.16], [1446, 2, 185, 1.95], [2049, 3, 637, 2.03], [8649, 2, 272, 3.64], [2775, 2, 187, 3.23], [8853, 2, 334, 4.31], [361, 2, 187, 2.65], [2776, 2, 187, 3.23], [3840, 1, 208, 1.94], [1429, 2, 185, 2.18], [523, 2, 187, 2.72], [7036, 1, 155, 3.11], [206, 2, 132, 2.03], [413, 1, 104, 2.3], [159, 3, 848, 2.07], [151, 1, 80, 2.82], [412, 1, 100, 2.68], [1124, 2, 227, 1.87], [990, 2, 63, 2.82], [11581, 29, 76, 2.03], [615, 2, 132, 1.94], [5165, 1, 57, 3.9], [21793, 1, 283, 2.84], [417, 2, 187, 2.72], [9372, 1, 282, 4.47], [6097, 80, 83, 4.21], [248, 1, 66, 1.9], [20258, 2, 110, 2.54], [142, 2, 187, 2.72], [616, 2, 132, 2.15], [21798, 1, 166, 2.02], [6952, 1, 229, 3.45], [11234, 2, 224, 1.85], [8089, 1, 85, 3.57], [3670, 2, 294, 4.19], [76, 2, 131, 3.32], [5165, 2, 457, 3.88], [3891, 1, 150, 2.68], [10574, 3, 610, 3.12], [345, 3, 359, 4.24], [2424, 80, 206, 3.64], [7084, 3, 156, 3.11], [6097, 29, 41, 4.21], [3893, 1, 150, 2.68], [10993, 2, 66, 2.87], [346, 3, 761, 2.77], [3334, 5, 222, 4.97], [11671, 1, 374, 2.01], [1886, 2, 190, 2.1], [1654, 2, 113, 2.04], [11089, 1, 206, 2.87], [10517, 29, 85, 2.93], [11504, 2, 170, 2.24], [2423, 80, 222, 3.28], [6098, 80, 91, 3.1], [11953, 1, 245, 1.91], [11769, 1, 198, 1.88], [5151, 2, 29, 4.74]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 6, 1.87], [305, 2, 4, 1.74], [2778, 2, 5, 0.4], [130, 1, 4, 1.36], [205, 2, 4, 0.5], [616, 2, 4, 0.46], [6936, 2, 5, 1.87], [1504, 2, 5, 0.54], [88, 10, 8, 0.87], [8648, 2, 4, 0.86], [7036, 1, 4, 1.07], [8915, 2, 5, 1.48], [326, 2, 4, 0.47], [589, 2, 5, 0.53], [593, 2, 5, 0.41], [8650, 2, 4, 0.57], [3893, 1, 4, 0.53], [8853, 2, 5, 1.87], [2775, 2, 4, 0.4], [3840, 1, 4, 0.37], [141, 2, 4, 0.8], [11681, 2, 5, 1.49], [2327, 2, 4, 0.6], [206, 2, 4, 0.38], [151, 1, 4, 0.74], [3891, 1, 4, 0.43], [146, 2, 4, 0.56], [2050, 3, 5, 0.95], [2497, 2, 4, 0.54], [3889, 1, 4, 0.53], [11685, 2, 5, 1.6], [2055, 3, 4, 1.18], [5491, 2, 4, 0.47], [12870, 1, 4, 0.49], [8672, 2, 5, 0.51], [2054, 3, 5, 1.05], [21798, 1, 4, 0.94], [8938, 2, 4, 0.39], [624, 2, 4, 0.35], [434, 2, 4, 0.39], [2057, 3, 5, 0.95], [2776, 2, 4, 0.93], [362, 2, 4, 0.72], [3980, 4, 5, 1.41], [13028, 3, 4, 0.5], [8649, 2, 4, 0.94], [5208, 3, 5, 0.37], [990, 2, 4, 0.43], [1006, 2, 4, 0.56], [10574, 3, 5, 1.36], [22179, 1, 4, 0.86], [10993, 2, 4, 0.46], [3495, 3, 13, 0.56], [9760, 29, 4, 0.49], [94, 4, 4, 0.93], [7084, 3, 4, 0.58], [214, 3, 9, 0.46], [10149, 3, 13, 0.4], [21793, 1, 4, 0.95], [3975, 4, 4, 1.26], [8939, 2, 4, 0.38], [6158, 2, 5, 1.02], [5946, 1, 4, 0.45], [997, 2, 4, 1.7], [11953, 1, 4, 0.42], [2774, 2, 4, 0.39], [11772, 1, 4, 0.8], [1492, 1, 4, 0.45], [998, 2, 4, 1.61], [346, 3, 4, 0.69], [3982, 3, 10, 1.18], [3981, 3, 13, 1.21], [996, 2, 4, 1.83], [6497, 1, 4, 0.51], [229, 1, 4, 0.92], [336, 15, 4, 0.55], [11767, 1, 4, 0.48], [12721, 2, 4, 0.49], [972, 3, 5, 0.47], [955, 2, 4, 0.73], [9372, 1, 4, 1.43], [13034, 3, 5, 1.26], [2104, 3, 6, 0.56], [11769, 1, 4, 0.96], [7567, 3, 4, 1.15], [11179, 1, 4, 0.48], [12212, 29, 4, 0.49], [1413, 15, 4, 0.46], [11490, 1, 4, 0.56], [11770, 1, 4, 0.54], [1126, 2, 4, 0.37], [286, 3, 4, 1.01], [11952, 1, 4, 0.42], [10388, 2, 4, 0.78], [22247, 2, 4, 0.91], [432, 3, 4, 0.46], [8673, 2, 4, 0.63], [411, 2, 4, 0.49], [12271, 2, 4, 0.63], [10936, 2, 4, 0.58], [4253, 1, 4, 0.44], [4176, 4, 4, 1.31], [11085, 2, 5, 1.27], [1274, 1, 4, 0.8], [410, 1, 4, 0.99], [8676, 2, 4, 0.48], [2436, 4, 4, 1.06], [22317, 3, 4, 0.51], [11808, 1, 4, 0.94], [5209, 3, 4, 0.37], [76, 2, 4, 1.06], [11954, 1, 4, 0.49], [10408, 10, 6, 1.33], [21269, 3, 4, 3.75], [1277, 1, 4, 0.61], [13023, 3, 5, 1.26], [1490, 1, 4, 1.4], [5076, 1, 5, 0.93], [10386, 2, 4, 0.92], [345, 3, 4, 1.37], [11489, 1, 4, 0.44], [346, 1, 4, 0.69], [10939, 2, 4, 0.58], [12526, 2, 4, 0.96], [11089, 1, 4, 0.58], [9784, 1, 4, 0.45], [361, 2, 4, 0.52], [11814, 1, 4, 0.48], [590, 15, 4, 0.7], [10407, 10, 6, 1.06], [96, 11, 13, 1.41], [10631, 2, 4, 0.55], [98, 11, 10, 2.11], [6935, 2, 330, 5.13], [2778, 2, 188, 2.5], [205, 2, 131, 2.18], [616, 2, 133, 2.1], [6936, 2, 330, 5.16], [1504, 2, 248, 2.17], [88, 10, 683, 3.01], [8648, 2, 275, 2.88], [7036, 1, 155, 3.34], [8915, 2, 66, 3.31], [326, 2, 113, 2.12], [589, 2, 184, 2.26], [593, 2, 279, 2.04], [8650, 2, 275, 2.31], [3893, 1, 151, 3.36], [8853, 2, 330, 5.16], [2775, 2, 188, 2.15], [3840, 1, 210, 1.94], [141, 2, 188, 2.77], [11681, 2, 331, 4.17], [2327, 2, 183, 2.37], [206, 2, 131, 1.95], [151, 1, 80, 2.64], [3891, 1, 151, 3.36], [146, 2, 180, 4.16], [2050, 3, 570, 2.9], [2497, 2, 248, 2.26], [3889, 1, 151, 2.5], [11685, 2, 330, 4.37], [2055, 3, 570, 3.5], [5491, 2, 132, 2.13], [12870, 1, 169, 2.16], [8672, 2, 347, 2.12], [2054, 3, 570, 3.06], [21798, 1, 167, 3.04], [8938, 2, 134, 1.82], [624, 2, 133, 1.89], [434, 2, 75, 1.82], [2057, 3, 570, 2.9], [2776, 2, 188, 3.01], [362, 2, 170, 2.6], [3980, 4, 580, 4.0], [13028, 3, 177, 2.47], [8649, 2, 275, 3.03], [5208, 3, 294, 1.59], [990, 2, 63, 2.06], [1006, 2, 277, 2.31], [10574, 3, 610, 3.62], [22179, 1, 199, 2.88], [10993, 2, 66, 2.1], [3495, 3, 1169, 2.21], [9760, 29, 87, 2.16], [94, 4, 146, 4.41], [7084, 3, 158, 2.34], [214, 3, 817, 2.08], [10149, 3, 1080, 3.15], [21793, 1, 269, 4.85], [3975, 4, 580, 3.7], [8939, 2, 134, 1.81], [6158, 2, 91, 3.41], [5946, 1, 151, 2.08], [997, 2, 275, 4.58], [11953, 1, 211, 2.16], [2774, 2, 248, 1.98], [11772, 1, 260, 2.76], [1492, 1, 45, 2.08], [998, 2, 275, 4.39]]</t>
-  </si>
-  <si>
-    <t>[[2328, 2, 5, 0.39], [6935, 2, 7, 1.44], [141, 2, 4, 0.62], [2778, 2, 5, 0.52], [143, 2, 4, 0.45], [8650, 2, 5, 1.27], [2327, 2, 5, 0.63], [145, 2, 4, 0.44], [8672, 2, 5, 0.79], [6936, 2, 5, 1.44], [362, 2, 4, 0.73], [205, 2, 4, 0.47], [146, 2, 4, 0.43], [11681, 2, 5, 2.33], [5493, 2, 4, 0.4], [361, 2, 4, 0.65], [11837, 2, 4, 0.55], [417, 2, 4, 0.53], [1005, 2, 4, 0.39], [8648, 2, 4, 0.96], [523, 2, 4, 0.48], [2049, 3, 8, 0.45], [8853, 2, 5, 1.38], [615, 2, 4, 0.45], [206, 2, 4, 0.56], [1504, 2, 5, 0.53], [12721, 2, 5, 0.47], [144, 2, 4, 0.36], [8915, 2, 5, 0.48], [9507, 3, 4, 0.68], [990, 2, 4, 0.41], [434, 2, 4, 0.36], [11739, 2, 4, 1.6], [8673, 2, 5, 0.49], [2776, 2, 4, 0.93], [435, 2, 4, 0.58], [76, 2, 4, 1.19], [11234, 2, 5, 0.47], [11738, 2, 4, 0.82], [1007, 2, 5, 0.38], [151, 1, 4, 0.85], [2423, 29, 4, 0.5], [2424, 29, 4, 1.0], [8676, 2, 5, 0.49], [88, 10, 8, 0.83], [8649, 2, 4, 0.94], [2424, 80, 5, 0.99], [2423, 80, 5, 0.47], [1413, 15, 4, 0.4], [3670, 2, 5, 1.46], [12720, 2, 4, 0.54], [2497, 2, 4, 0.53], [10574, 3, 6, 1.26], [2859, 15, 4, 0.56], [3, 2, 5, 0.51], [412, 1, 4, 0.53], [10149, 3, 13, 0.55], [1339, 3, 10, 1.11], [346, 3, 5, 0.5], [6497, 1, 4, 1.38], [11919, 1, 4, 0.48], [3478, 2, 4, 0.9], [74, 1, 4, 1.47], [60, 3, 6, 1.26], [346, 1, 4, 0.49], [7036, 1, 4, 1.91], [7004, 1, 4, 0.52], [411, 2, 4, 0.56], [2774, 2, 4, 0.53], [413, 1, 4, 0.47], [13928, 1, 4, 0.71], [11089, 1, 4, 0.45], [1339, 1, 4, 1.28], [6097, 80, 4, 1.41], [418, 2, 4, 0.73], [12526, 2, 4, 0.93], [6494, 1, 4, 0.69], [10993, 2, 4, 0.61], [1050, 2, 4, 0.36], [1492, 1, 4, 0.83], [950, 1, 4, 1.12], [22317, 3, 5, 0.51], [11844, 2, 5, 0.51], [1490, 1, 4, 0.49], [439, 1, 4, 1.36], [6630, 3, 4, 1.77], [3893, 1, 4, 0.43], [22558, 3, 5, 0.45], [6952, 1, 4, 0.49], [6098, 80, 4, 0.58], [2422, 80, 4, 0.79], [3495, 3, 13, 0.63], [1243, 2, 4, 1.18], [5208, 3, 5, 0.48], [229, 1, 4, 1.12], [94, 4, 4, 1.16], [1413, 16, 4, 0.41], [13260, 29, 4, 0.45], [247, 1, 4, 0.48], [9784, 1, 4, 0.49], [3889, 1, 4, 0.71], [7707, 2, 4, 0.42], [565, 2, 5, 0.41], [7708, 2, 4, 0.48], [18964, 1, 4, 0.4], [11490, 1, 4, 0.49], [963, 3, 4, 0.36], [214, 3, 9, 0.49], [9049, 2, 4, 0.81], [21793, 1, 4, 0.48], [6098, 29, 4, 0.58], [2331, 1, 4, 0.52], [3674, 2, 5, 0.54], [414, 1, 4, 0.54], [7703, 2, 4, 0.38], [416, 1, 4, 0.57], [410, 1, 4, 0.54], [11491, 2, 4, 0.74], [149, 2, 4, 1.28], [2805, 137, 5, 0.68], [20555, 2, 4, 0.82], [23275, 2, 4, 0.99], [147, 1, 4, 1.3], [71, 15, 4, 0.51], [1274, 1, 4, 1.03], [9372, 1, 4, 1.89], [3430, 15, 4, 0.62], [2422, 29, 4, 0.75], [11671, 1, 5, 0.42], [942, 3, 4, 1.0], [345, 3, 5, 0.75], [13263, 29, 4, 0.45], [6097, 29, 4, 1.42], [2328, 2, 205, 2.71], [6935, 2, 381, 5.09], [141, 2, 211, 2.67], [2778, 2, 211, 2.73], [143, 2, 198, 2.34], [8650, 2, 308, 3.71], [2327, 2, 205, 2.59], [145, 2, 204, 2.34], [8672, 2, 389, 3.05], [6936, 2, 381, 5.12], [362, 2, 192, 2.98], [205, 2, 147, 2.39], [146, 2, 204, 2.32], [11681, 2, 369, 6.0], [5493, 2, 148, 2.24], [361, 2, 212, 2.74], [11837, 2, 362, 2.53], [417, 2, 211, 2.51], [1005, 2, 56, 1.89], [8648, 2, 308, 3.32], [523, 2, 211, 2.41], [2049, 3, 359, 2.26], [8853, 2, 381, 4.19], [615, 2, 149, 2.34], [206, 2, 147, 2.55], [1504, 2, 282, 3.22], [12721, 2, 389, 2.82], [144, 2, 204, 2.18], [8915, 2, 260, 2.32], [990, 2, 71, 2.28], [434, 2, 37, 1.55], [8673, 2, 389, 3.83], [2776, 2, 211, 3.28], [435, 2, 144, 2.59], [76, 2, 148, 3.76], [11234, 2, 250, 2.58], [11738, 2, 77, 3.36], [1007, 2, 367, 2.15], [151, 1, 90, 3.12], [2423, 29, 50, 3.29], [2424, 29, 46, 3.42], [8676, 2, 389, 2.34], [88, 10, 770, 2.97], [8649, 2, 308, 3.29], [2424, 80, 232, 3.22], [2423, 80, 250, 3.26], [1413, 15, 134, 2.26], [3670, 2, 332, 4.37], [12720, 2, 389, 2.52], [2497, 2, 282, 3.22], [10574, 3, 675, 3.97], [2859, 15, 93, 2.56], [3, 2, 163, 2.38], [412, 1, 114, 2.49], [10149, 3, 1220, 2.46], [1339, 3, 915, 5.72], [346, 3, 857, 2.36], [6497, 1, 50, 4.13], [11919, 1, 246, 2.42], [3478, 2, 102, 3.52], [74, 1, 276, 4.38], [60, 3, 1086, 4.41], [346, 1, 214, 2.43], [7036, 1, 174, 5.24], [7004, 1, 107, 2.49], [411, 2, 147, 2.55], [2774, 2, 282, 3.2]]</t>
-  </si>
-  <si>
-    <t>[[3, 2, 4, 0.47], [8672, 2, 6, 0.76], [2049, 3, 9, 0.45], [589, 2, 5, 0.35], [6935, 2, 8, 0.73], [205, 2, 4, 1.02], [7630, 2, 8, 2.17], [143, 2, 4, 0.45], [144, 2, 4, 0.45], [593, 2, 5, 0.55], [75, 2, 4, 0.41], [8915, 2, 5, 0.5], [2778, 2, 5, 0.64], [12721, 2, 6, 0.4], [7885, 4, 5, 0.39], [6936, 2, 5, 0.73], [206, 2, 4, 0.65], [2328, 2, 5, 0.49], [1776, 1, 4, 1.61], [8648, 2, 4, 0.96], [5151, 2, 4, 1.78], [151, 1, 4, 0.85], [1777, 1, 4, 1.16], [141, 2, 4, 0.48], [8650, 2, 4, 1.22], [88, 10, 8, 1.09], [74, 1, 4, 1.03], [248, 1, 4, 0.56], [990, 2, 4, 0.36], [7004, 1, 4, 0.39], [362, 2, 4, 0.69], [76, 2, 4, 1.25], [1492, 1, 4, 0.36], [8649, 2, 4, 0.81], [3889, 1, 4, 0.81], [7005, 1, 4, 0.45], [410, 1, 4, 0.47], [12870, 1, 4, 0.5], [10825, 21, 8, 0.56], [307, 2, 4, 0.56], [1429, 2, 4, 0.38], [10149, 3, 13, 0.71], [7084, 3, 4, 0.87], [5081, 2, 4, 0.54], [147, 1, 4, 1.25], [1504, 2, 5, 0.5], [21798, 1, 4, 0.41], [7036, 1, 4, 0.71], [345, 3, 5, 0.47], [94, 4, 4, 1.44], [22179, 1, 4, 0.57], [1654, 2, 4, 0.41], [3478, 2, 4, 1.03], [3891, 1, 4, 0.64], [1656, 2, 4, 0.41], [167, 3, 4, 0.75], [11404, 2, 5, 0.63], [308, 1, 4, 0.9], [79, 1, 4, 0.36], [96, 11, 15, 0.49], [439, 1, 4, 1.4], [23, 1, 4, 0.38], [411, 2, 4, 0.65], [8853, 2, 5, 1.08], [9760, 29, 4, 0.49], [168, 3, 5, 0.7], [21793, 1, 4, 0.54], [1490, 1, 4, 0.43], [9827, 3, 4, 0.44], [8677, 3, 5, 0.51], [432, 3, 5, 0.62], [5812, 3, 5, 0.49], [10574, 3, 5, 1.31], [335, 3, 9, 0.37], [1243, 2, 4, 0.5], [6158, 2, 5, 0.45], [229, 1, 4, 1.2], [1124, 2, 5, 0.41], [346, 1, 4, 0.83], [412, 1, 4, 0.36], [214, 3, 9, 0.53], [25, 1, 4, 1.51], [9372, 1, 4, 1.6], [1767, 25, 4, 0.53], [346, 3, 5, 0.82], [8651, 2, 4, 0.81], [45, 2, 4, 1.63], [35, 1, 4, 0.44], [3495, 3, 13, 0.93], [998, 2, 4, 0.62], [11681, 2, 5, 1.56], [11490, 1, 4, 0.43], [2049, 1, 4, 0.41], [95, 3, 10, 0.54], [148, 1, 4, 1.28], [5946, 1, 4, 0.43], [11116, 1, 4, 0.36], [2775, 2, 4, 0.4], [950, 1, 4, 1.1], [8898, 3, 4, 1.3], [1766, 25, 4, 0.91], [201, 3, 5, 0.47], [9691, 1, 4, 0.38], [3670, 2, 5, 1.37], [1070, 7, 9, 0.45], [1163, 3, 5, 0.38], [11954, 1, 4, 0.41], [97, 11, 13, 0.44], [3980, 4, 4, 1.38], [11739, 2, 4, 1.36], [8676, 2, 6, 0.56], [11489, 1, 4, 1.12], [8945, 3, 5, 0.53], [972, 3, 5, 0.39], [996, 2, 4, 0.7], [20498, 3, 5, 0.53], [20498, 1, 4, 0.53], [974, 3, 4, 0.51], [1519, 3, 10, 0.36], [9784, 1, 4, 0.45], [823, 1, 4, 0.65], [93, 11, 10, 0.81], [11454, 2, 5, 1.61], [149, 2, 4, 1.29], [1414, 15, 4, 0.36], [11811, 1, 4, 0.76], [5584, 3, 4, 1.62], [8104, 1, 4, 0.38], [2497, 2, 4, 0.43], [24, 1, 4, 1.51], [506, 1, 4, 1.27], [5811, 3, 5, 0.57], [9828, 3, 4, 0.47], [3, 2, 154, 2.05], [8672, 2, 366, 2.54], [2049, 3, 676, 2.14], [589, 2, 197, 1.92], [6935, 2, 362, 3.71], [205, 2, 139, 3.11], [7630, 2, 162, 5.28], [143, 2, 186, 2.0], [144, 2, 192, 2.01], [593, 2, 293, 2.35], [75, 2, 188, 1.94], [8915, 2, 248, 2.24], [2778, 2, 199, 2.27], [12721, 2, 368, 1.88], [7885, 4, 60, 1.38], [6936, 2, 362, 3.57], [206, 2, 139, 2.4], [2328, 2, 193, 2.01], [1776, 1, 141, 4.24], [8648, 2, 289, 2.99], [5151, 2, 31, 4.6], [151, 1, 85, 2.78], [1777, 1, 144, 3.38], [141, 2, 199, 2.07], [8650, 2, 289, 3.5], [88, 10, 725, 3.69], [74, 1, 258, 3.12], [248, 1, 69, 2.77], [990, 2, 67, 1.83], [7004, 1, 102, 1.89], [362, 2, 180, 2.48], [76, 2, 139, 3.62], [1492, 1, 48, 2.18], [8649, 2, 289, 2.71], [3889, 1, 159, 3.49], [7005, 1, 102, 2.02], [410, 1, 134, 2.05], [12870, 1, 180, 2.1], [10825, 21, 807, 2.14], [307, 2, 187, 2.22], [1429, 2, 196, 1.87], [10149, 3, 1149, 2.4], [7084, 3, 165, 2.82], [5081, 2, 243, 2.19], [147, 1, 113, 3.55], [1504, 2, 261, 2.03], [21798, 1, 178, 1.93], [7036, 1, 164, 2.51], [345, 3, 390, 1.96], [94, 4, 155, 3.98], [22179, 1, 212, 2.24], [1654, 2, 121, 1.93], [3478, 2, 96, 3.29], [3891, 1, 159, 3.49], [1656, 2, 121, 1.93], [167, 3, 293, 2.58], [11404, 2, 46, 1.79], [308, 1, 213, 4.0], [79, 1, 31, 1.61], [96, 11, 1067, 2.0], [439, 1, 108, 5.49], [23, 1, 140, 3.12], [411, 2, 139, 2.4], [8853, 2, 362, 3.75], [9760, 29, 92, 2.09], [168, 3, 520, 2.37], [21793, 1, 300, 2.18]]</t>
-  </si>
-  <si>
-    <t>[[305, 2, 4, 1.25], [6935, 2, 8, 0.97], [326, 2, 5, 0.39], [205, 2, 4, 0.74], [141, 2, 4, 0.61], [362, 2, 4, 0.75], [151, 1, 4, 0.74], [146, 2, 4, 0.38], [2328, 2, 5, 0.49], [145, 2, 4, 0.38], [143, 2, 4, 0.45], [8648, 2, 5, 0.87], [8915, 2, 5, 0.35], [6936, 2, 5, 0.97], [206, 2, 4, 0.65], [990, 2, 4, 0.54], [8650, 2, 4, 1.13], [5151, 2, 4, 1.74], [1007, 2, 6, 0.46], [20252, 2, 4, 0.5], [2778, 2, 5, 0.58], [248, 1, 4, 0.37], [76, 2, 4, 1.19], [88, 10, 8, 1.09], [8649, 2, 4, 0.72], [2050, 3, 5, 0.38], [75, 2, 4, 0.36], [10149, 3, 15, 1.81], [1654, 2, 4, 0.41], [412, 1, 4, 0.65], [8677, 3, 5, 1.56], [2057, 3, 5, 1.15], [10825, 21, 8, 0.48], [1656, 2, 4, 0.41], [413, 1, 4, 0.37], [410, 1, 4, 0.99], [411, 2, 4, 0.65], [307, 2, 4, 0.56], [7084, 3, 4, 0.49], [1429, 2, 4, 0.53], [308, 1, 4, 0.9], [1492, 1, 4, 0.48], [3893, 1, 4, 0.53], [1006, 2, 4, 0.61], [5081, 2, 4, 0.35], [3495, 3, 13, 0.93], [6158, 2, 5, 0.39], [10574, 3, 5, 0.37], [167, 3, 5, 0.75], [74, 1, 4, 0.64], [1124, 2, 5, 0.45], [3889, 1, 4, 0.81], [45, 2, 4, 1.63], [3891, 1, 4, 0.53], [1504, 2, 5, 0.5], [7036, 1, 4, 0.56], [12870, 1, 4, 0.55], [11681, 2, 5, 2.55], [335, 3, 10, 0.37], [168, 3, 5, 0.7], [9827, 3, 4, 0.44], [94, 4, 4, 1.1], [147, 1, 4, 1.22], [8853, 2, 5, 1.16], [415, 1, 4, 0.46], [439, 1, 4, 1.4], [6097, 80, 4, 1.58], [22179, 1, 4, 0.45], [418, 2, 4, 0.58], [8651, 2, 4, 0.73], [346, 1, 4, 0.83], [11737, 2, 4, 0.64], [23, 1, 4, 1.04], [416, 1, 4, 0.57], [20256, 2, 4, 0.37], [432, 3, 5, 0.62], [6097, 29, 4, 1.59], [96, 11, 14, 0.49], [346, 3, 5, 0.82], [148, 1, 4, 1.24], [1490, 1, 4, 0.35], [6098, 80, 4, 0.58], [95, 3, 13, 0.54], [10631, 2, 4, 0.47], [14017, 3, 4, 0.39], [8898, 3, 5, 1.32], [414, 1, 4, 0.57], [950, 1, 4, 0.4], [1070, 7, 8, 0.45], [6098, 29, 4, 0.58], [22316, 3, 5, 0.49], [25, 1, 4, 0.38], [11116, 1, 4, 0.36], [11490, 1, 4, 0.43], [1413, 15, 4, 0.56], [11489, 1, 4, 0.74], [8945, 3, 5, 0.76], [3980, 4, 5, 1.38], [9760, 29, 4, 0.45], [5086, 1, 4, 1.21], [9829, 3, 4, 0.37], [20255, 2, 4, 0.42], [9372, 1, 4, 1.6], [229, 1, 4, 1.2], [9784, 1, 4, 0.47], [336, 15, 4, 0.84], [972, 3, 5, 0.39], [11739, 2, 4, 1.7], [5811, 3, 5, 0.5], [974, 3, 4, 0.51], [149, 2, 4, 1.26], [8557, 3, 4, 0.66], [22317, 3, 5, 0.51], [5813, 3, 5, 2.0], [2423, 80, 4, 0.63], [7567, 3, 4, 1.16], [9082, 3, 13, 0.83], [3049, 3, 4, 1.6], [2497, 2, 4, 0.43], [2424, 80, 4, 1.0], [8943, 3, 4, 0.78], [1414, 15, 4, 0.63], [2775, 2, 4, 0.53], [4076, 3, 4, 1.04], [952, 4, 4, 2.09], [470, 1, 4, 0.45], [11454, 2, 5, 1.61], [13023, 3, 5, 1.24], [11767, 1, 4, 0.46], [2854, 21, 5, 0.43], [2104, 3, 7, 0.48], [6497, 1, 4, 1.21], [5584, 3, 4, 1.55], [305, 2, 101, 3.23], [6935, 2, 327, 3.74], [326, 2, 109, 1.68], [205, 2, 126, 2.43], [141, 2, 180, 2.16], [362, 2, 163, 2.44], [151, 1, 77, 2.41], [146, 2, 174, 1.72], [2328, 2, 175, 1.86], [145, 2, 174, 2.96], [143, 2, 169, 1.86], [8648, 2, 263, 2.52], [8915, 2, 226, 1.62], [6936, 2, 327, 3.61], [206, 2, 126, 2.25], [990, 2, 60, 2.03], [8650, 2, 263, 3.18], [5151, 2, 28, 4.82], [1007, 2, 313, 2.0], [20252, 2, 108, 1.95], [2778, 2, 181, 2.01], [248, 1, 63, 2.3], [76, 2, 126, 3.35], [88, 10, 657, 3.24], [8649, 2, 263, 2.38], [2050, 3, 555, 1.66], [75, 2, 171, 1.7], [10149, 3, 1002, 4.53], [1654, 2, 109, 1.78], [412, 1, 96, 2.84], [8677, 3, 339, 4.07], [2057, 3, 222, 2.64], [10825, 21, 735, 1.91], [1656, 2, 109, 1.78], [413, 1, 100, 1.7], [410, 1, 49, 2.52], [411, 2, 126, 2.25], [307, 2, 170, 2.07], [7084, 3, 152, 1.94], [1429, 2, 177, 2.01], [308, 1, 193, 3.85], [1492, 1, 44, 1.92], [3893, 1, 144, 2.28], [1006, 2, 265, 2.17], [5081, 2, 222, 1.67], [3495, 3, 1118, 2.64], [6158, 2, 309, 1.77], [10574, 3, 601, 1.74], [167, 3, 265, 2.31], [74, 1, 236, 2.22], [1124, 2, 217, 2.08], [3889, 1, 144, 2.56], [45, 2, 128, 4.19], [3891, 1, 144, 2.28], [1504, 2, 237, 1.88], [7036, 1, 149, 2.08], [12870, 1, 163, 2.05], [11681, 2, 314, 5.48], [335, 3, 1555, 2.25], [168, 3, 471, 2.22], [9827, 3, 101, 1.83], [94, 4, 139, 4.19], [147, 1, 103, 3.33], [8853, 2, 327, 3.8], [415, 1, 100, 1.87], [439, 1, 98, 5.78], [6097, 80, 80, 4.11]]</t>
-  </si>
-  <si>
-    <t>[[11685, 2, 5, 1.6], [130, 1, 4, 1.36], [6935, 2, 6, 1.87], [8648, 2, 4, 0.86], [143, 2, 4, 0.47], [205, 2, 4, 0.5], [2328, 2, 4, 0.51], [2778, 2, 5, 0.4], [6936, 2, 5, 1.87], [305, 2, 4, 1.74], [141, 2, 4, 0.8], [8650, 2, 4, 0.57], [206, 2, 4, 0.38], [151, 1, 4, 0.74], [11681, 2, 5, 1.49], [146, 2, 4, 0.56], [88, 10, 8, 0.87], [7036, 1, 4, 1.07], [8853, 2, 5, 1.87], [5491, 2, 4, 0.47], [8649, 2, 4, 0.94], [362, 2, 4, 0.72], [248, 1, 4, 0.6], [22179, 1, 4, 0.86], [1006, 2, 4, 0.56], [12870, 1, 4, 0.49], [3893, 1, 4, 0.53], [990, 2, 4, 0.43], [11737, 2, 4, 0.54], [3840, 1, 4, 0.37], [2055, 3, 4, 1.18], [616, 2, 4, 0.46], [75, 2, 4, 0.46], [10993, 2, 4, 0.46], [1504, 2, 5, 0.54], [2050, 3, 5, 0.95], [3889, 1, 4, 0.53], [10574, 3, 5, 1.36], [997, 2, 4, 1.7], [2057, 3, 5, 0.95], [3, 2, 4, 0.37], [9760, 29, 4, 0.49], [94, 4, 4, 0.93], [7084, 3, 4, 0.58], [9372, 1, 4, 1.43], [346, 3, 4, 0.69], [624, 2, 4, 0.35], [996, 2, 4, 1.83], [76, 2, 4, 1.06], [2775, 2, 4, 0.4], [2054, 3, 5, 1.05], [3891, 1, 4, 0.43], [8939, 2, 4, 0.38], [998, 2, 4, 1.61], [3982, 3, 10, 1.18], [1126, 2, 4, 0.37], [21798, 1, 4, 0.94], [84, 2, 4, 0.42], [11739, 2, 4, 0.54], [214, 3, 9, 0.46], [8672, 2, 5, 0.51], [972, 3, 5, 0.47], [6158, 2, 5, 1.02], [21793, 1, 4, 0.95], [950, 1, 4, 1.04], [96, 11, 13, 1.41], [995, 2, 4, 1.23], [2776, 2, 4, 0.93], [10388, 2, 4, 0.78], [411, 2, 4, 0.49], [98, 11, 10, 2.11], [346, 1, 4, 0.69], [410, 1, 4, 0.99], [418, 2, 4, 0.74], [413, 1, 4, 0.42], [13928, 1, 4, 0.94], [3980, 4, 5, 1.41], [22316, 3, 4, 0.51], [9784, 1, 4, 0.45], [1492, 1, 4, 0.45], [10386, 2, 4, 0.92], [11490, 1, 4, 0.56], [22247, 2, 4, 0.91], [336, 15, 4, 0.55], [412, 1, 4, 0.71], [11770, 1, 4, 0.54], [11504, 2, 4, 0.63], [1413, 15, 4, 0.46], [13893, 2, 4, 0.71], [11808, 1, 4, 0.94], [308, 1, 5, 0.42], [3981, 3, 13, 1.21], [10407, 10, 6, 1.06], [414, 1, 4, 0.45], [22317, 3, 4, 0.51], [7567, 3, 4, 1.15], [10410, 10, 6, 1.06], [20256, 2, 4, 0.41], [229, 1, 4, 0.92], [972, 1, 4, 0.47], [11953, 1, 4, 0.42], [10631, 2, 4, 0.55], [6497, 1, 4, 0.51], [432, 3, 4, 0.46], [8677, 3, 4, 0.4], [2331, 1, 4, 0.69], [5490, 2, 4, 0.49], [335, 3, 9, 0.37], [415, 1, 4, 0.4], [74, 1, 4, 0.6], [9691, 1, 4, 0.48], [11767, 1, 4, 0.48], [9082, 3, 17, 0.83], [10387, 2, 4, 0.92], [12271, 2, 4, 0.63], [2497, 2, 4, 0.54], [439, 1, 4, 1.11], [8943, 3, 4, 1.21], [12721, 2, 4, 0.49], [8897, 3, 4, 1.81], [9, 1, 4, 0.88], [10780, 10, 4, 1.99], [1163, 3, 4, 0.59], [2104, 3, 6, 0.56], [10149, 3, 13, 0.4], [11510, 3, 5, 1.71], [10936, 2, 4, 0.58], [1523, 1, 4, 2.14], [9971, 2, 4, 0.69], [11489, 1, 4, 0.44], [8635, 3, 4, 0.41], [416, 1, 4, 0.5], [13281, 1, 4, 2.9], [11685, 2, 330, 4.37], [6935, 2, 330, 5.13], [8648, 2, 275, 2.88], [143, 2, 174, 3.7], [205, 2, 131, 2.18], [2328, 2, 183, 2.2], [2778, 2, 188, 2.5], [6936, 2, 330, 5.16], [141, 2, 188, 2.77], [8650, 2, 275, 2.31], [206, 2, 131, 1.95], [151, 1, 80, 2.64], [11681, 2, 331, 4.17], [146, 2, 180, 4.16], [88, 10, 683, 3.01], [7036, 1, 155, 3.34], [8853, 2, 330, 5.16], [5491, 2, 132, 2.13], [8649, 2, 275, 3.03], [362, 2, 170, 2.6], [248, 1, 65, 2.47], [22179, 1, 199, 2.88], [1006, 2, 277, 2.31], [12870, 1, 169, 2.16], [3893, 1, 151, 3.36], [990, 2, 63, 2.06], [11737, 2, 69, 2.26], [3840, 1, 210, 1.94], [2055, 3, 570, 3.5], [616, 2, 133, 2.1], [75, 2, 179, 3.38], [10993, 2, 66, 2.1], [1504, 2, 248, 2.17], [2050, 3, 570, 2.9], [3889, 1, 151, 2.5], [10574, 3, 610, 3.62], [997, 2, 275, 4.58], [2057, 3, 570, 2.9], [3, 2, 148, 1.94], [9760, 29, 87, 2.16], [94, 4, 146, 4.41], [7084, 3, 158, 2.34], [9372, 1, 283, 4.72], [346, 3, 764, 2.55], [624, 2, 133, 1.89], [996, 2, 275, 4.82], [76, 2, 133, 3.32], [2775, 2, 188, 2.15], [2054, 3, 570, 3.06], [3891, 1, 151, 3.36], [8939, 2, 134, 1.81], [998, 2, 275, 4.39], [3982, 3, 949, 3.54], [1126, 2, 277, 1.93], [21798, 1, 167, 3.04], [84, 2, 81, 2.03], [11739, 2, 69, 2.26], [214, 3, 817, 2.08], [8672, 2, 347, 2.12], [972, 3, 725, 2.03], [6158, 2, 91, 3.41], [21793, 1, 269, 4.85], [950, 1, 71, 3.21], [96, 11, 996, 3.72], [995, 2, 291, 3.6], [2776, 2, 188, 3.01], [10388, 2, 261, 5.29]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 5, 0.46], [2778, 2, 5, 0.5], [205, 2, 4, 0.47], [206, 2, 4, 0.56], [1504, 2, 5, 0.52], [2049, 3, 8, 0.45], [3, 2, 5, 0.45], [6936, 2, 5, 1.2], [8650, 2, 5, 1.27], [11838, 2, 5, 0.48], [151, 1, 4, 0.85], [8648, 2, 4, 0.96], [11739, 2, 4, 1.7], [616, 2, 4, 0.45], [8853, 2, 5, 1.29], [11837, 2, 4, 0.45], [2776, 2, 4, 0.67], [146, 2, 4, 0.41], [2327, 2, 5, 0.63], [143, 2, 4, 0.47], [2423, 29, 4, 0.5], [2423, 80, 5, 0.47], [411, 2, 4, 0.56], [6497, 1, 4, 1.38], [583, 2, 4, 0.46], [145, 2, 4, 0.42], [2805, 137, 5, 0.61], [326, 2, 5, 0.42], [6097, 80, 4, 1.41], [9784, 1, 4, 0.49], [2775, 2, 4, 0.51], [10149, 3, 13, 0.55], [10574, 3, 6, 1.26], [11836, 2, 4, 0.6], [6097, 29, 4, 1.42], [2057, 3, 5, 0.35], [11234, 2, 5, 0.63], [20252, 2, 4, 0.51], [1413, 15, 4, 0.41], [76, 2, 4, 1.19], [2422, 80, 4, 0.79], [11504, 2, 4, 0.52], [6098, 80, 4, 0.58], [1492, 1, 4, 0.83], [6494, 1, 4, 0.69], [6496, 1, 4, 0.87], [1886, 2, 4, 0.46], [12269, 2, 4, 0.79], [247, 1, 4, 0.43], [336, 15, 4, 0.67], [2422, 29, 4, 0.75], [1243, 2, 4, 0.43], [11491, 2, 4, 0.74], [3429, 15, 4, 0.36], [9786, 1, 4, 0.49], [22316, 3, 5, 0.43], [21798, 1, 4, 0.43], [1490, 1, 4, 0.49], [6098, 29, 4, 0.58], [13928, 1, 4, 0.72], [201, 3, 5, 1.17], [944, 15, 4, 0.41], [11489, 1, 4, 0.49], [3670, 2, 5, 1.46], [2859, 15, 4, 0.4], [21793, 1, 4, 0.66], [9342, 2, 5, 0.49], [214, 3, 9, 0.49], [2049, 1, 4, 0.41], [7084, 3, 4, 0.44], [8938, 2, 4, 1.47], [8943, 3, 4, 1.27], [9785, 1, 4, 0.49], [8659, 1, 4, 0.48], [8944, 3, 4, 0.84], [11770, 1, 4, 0.9], [3478, 2, 4, 0.9], [229, 1, 4, 0.56], [4253, 1, 4, 0.47], [12526, 2, 4, 0.82], [11671, 1, 5, 0.42], [4232, 80, 4, 0.82], [1413, 16, 4, 0.42], [8599, 1, 4, 0.47], [88, 10, 8, 1.04], [11885, 2, 5, 0.51], [107, 7, 5, 0.36], [436, 2, 4, 0.37], [10398, 2, 4, 0.5], [74, 1, 4, 1.76], [11811, 1, 4, 0.76], [11887, 2, 5, 0.47], [1429, 2, 4, 0.41], [11160, 1, 4, 0.59], [1699, 3, 4, 0.46], [1050, 2, 4, 0.86], [11677, 1, 5, 1.14], [590, 15, 4, 0.49], [1548, 1, 4, 0.46], [140, 2, 4, 0.39], [11490, 1, 4, 0.49], [9358, 1, 4, 1.43], [9760, 29, 4, 0.45], [3673, 2, 4, 1.7], [11767, 1, 4, 0.4], [2421, 80, 5, 0.37], [94, 4, 4, 1.16], [11769, 1, 4, 0.41], [22573, 2, 4, 0.99], [107, 2, 4, 0.35], [1006, 2, 4, 0.69], [11844, 2, 5, 0.51], [11954, 1, 4, 0.55], [3495, 3, 13, 0.63], [11771, 1, 4, 1.3], [7036, 1, 4, 0.87], [9082, 3, 17, 0.83], [12764, 2, 6, 0.52], [13928, 2, 4, 0.72], [2104, 3, 6, 0.53], [11180, 1, 4, 0.47], [1668, 1, 4, 0.46], [9491, 21, 10, 0.51], [11674, 1, 4, 1.06], [8286, 2, 5, 0.38], [5940, 3, 4, 0.42], [2108, 3, 6, 0.85], [2703, 3, 4, 0.48], [5939, 3, 4, 0.42], [11808, 1, 4, 0.36], [10407, 10, 7, 1.56], [9690, 1, 4, 0.49], [8274, 3, 4, 0.81], [8672, 2, 392, 2.4], [2778, 2, 212, 2.69], [205, 2, 147, 2.39], [206, 2, 147, 2.55], [1504, 2, 283, 2.52], [2049, 3, 359, 2.26], [3, 2, 164, 2.27], [6936, 2, 382, 4.51], [8650, 2, 308, 3.71], [11838, 2, 356, 2.31], [151, 1, 90, 3.12], [8648, 2, 308, 3.32], [616, 2, 149, 2.35], [8853, 2, 382, 4.04], [11837, 2, 359, 2.35], [2776, 2, 212, 2.77], [146, 2, 204, 2.26], [2327, 2, 205, 2.59], [143, 2, 195, 3.96], [2423, 29, 50, 3.29], [2423, 80, 250, 3.26], [411, 2, 147, 2.55], [6497, 1, 50, 4.13], [583, 2, 126, 2.36], [145, 2, 204, 2.28], [2805, 137, 249, 2.56], [326, 2, 126, 2.23], [6097, 80, 93, 4.26], [9784, 1, 98, 2.43], [2775, 2, 212, 2.46], [10149, 3, 1220, 2.46], [10574, 3, 675, 3.97], [11836, 2, 359, 2.63], [6097, 29, 47, 4.28], [2057, 3, 410, 1.97], [11234, 2, 251, 2.73], [20252, 2, 126, 2.47], [1413, 15, 134, 2.28], [76, 2, 148, 3.76], [2422, 80, 249, 4.47], [11504, 2, 192, 2.48], [6098, 80, 102, 3.44], [1492, 1, 51, 3.09], [6494, 1, 68, 4.36], [6496, 1, 55, 3.15], [1886, 2, 214, 2.37], [12269, 2, 32, 4.34], [247, 1, 122, 2.3], [336, 15, 156, 2.76], [2422, 29, 50, 4.44], [1243, 2, 133, 2.31], [11491, 2, 192, 2.91], [3429, 15, 36, 1.96], [9786, 1, 98, 2.43], [22316, 3, 426, 2.24], [21798, 1, 187, 2.32], [1490, 1, 70, 2.42], [6098, 29, 51, 3.44], [13928, 1, 65, 2.87], [201, 3, 404, 4.79], [944, 15, 59, 2.27], [11489, 1, 147, 2.43], [3670, 2, 332, 4.37], [2859, 15, 35, 1.89], [21793, 1, 319, 2.76], [9342, 2, 627, 2.36], [214, 3, 917, 2.38]]</t>
-  </si>
-  <si>
-    <t>[[305, 2, 4, 0.5], [6935, 2, 5, 2.61], [2778, 2, 4, 0.51], [2775, 2, 4, 0.51], [8648, 2, 4, 0.96], [6936, 2, 5, 2.61], [8650, 2, 4, 0.57], [205, 2, 4, 0.47], [145, 2, 4, 0.47], [3840, 1, 4, 0.44], [7036, 1, 4, 1.13], [2776, 2, 4, 0.51], [2049, 3, 6, 0.45], [615, 2, 4, 0.38], [88, 10, 8, 0.93], [616, 2, 4, 0.38], [141, 2, 4, 0.58], [7004, 1, 4, 0.39], [151, 1, 4, 0.74], [206, 2, 4, 0.56], [11681, 2, 5, 1.6], [8853, 2, 4, 1.78], [1007, 2, 5, 0.39], [9372, 1, 4, 1.56], [990, 2, 4, 0.46], [362, 2, 4, 0.74], [3893, 1, 4, 1.18], [12870, 1, 4, 0.61], [248, 1, 4, 0.56], [8649, 2, 4, 0.48], [8672, 2, 5, 0.44], [417, 2, 4, 0.89], [3889, 1, 4, 1.18], [2497, 2, 4, 0.53], [10993, 2, 4, 0.7], [142, 2, 4, 0.44], [10574, 3, 5, 1.36], [10149, 3, 10, 0.62], [7084, 3, 4, 0.44], [523, 2, 4, 0.47], [3891, 1, 4, 1.18], [997, 2, 4, 1.5], [1006, 2, 4, 0.56], [21793, 1, 4, 0.82], [11234, 2, 4, 1.1], [22247, 2, 4, 0.6], [1622, 1, 4, 0.42], [229, 1, 4, 1.03], [346, 3, 4, 0.5], [998, 2, 4, 0.62], [12721, 2, 4, 0.57], [94, 4, 4, 1.41], [8104, 1, 4, 0.5], [9491, 21, 10, 0.44], [2424, 80, 5, 1.08], [13280, 1, 5, 1.37], [972, 3, 5, 0.51], [147, 1, 4, 1.16], [13928, 1, 4, 0.79], [1656, 2, 4, 0.42], [413, 1, 4, 0.54], [11952, 1, 4, 0.69], [7573, 1, 8, 0.58], [76, 2, 4, 1.02], [11769, 1, 4, 0.46], [2774, 2, 4, 0.48], [6158, 2, 5, 1.78], [346, 1, 4, 0.5], [5076, 1, 4, 0.41], [11770, 1, 4, 0.64], [439, 1, 4, 1.39], [950, 1, 4, 0.4], [412, 1, 4, 0.64], [12212, 29, 4, 0.53], [8676, 2, 4, 0.49], [995, 2, 4, 1.17], [418, 2, 4, 1.32], [3495, 3, 10, 0.56], [11490, 1, 4, 0.44], [10407, 10, 7, 1.56], [9, 1, 4, 0.97], [11953, 1, 4, 0.42], [4032, 29, 4, 0.47], [8898, 3, 4, 1.41], [2424, 29, 4, 1.1], [214, 3, 9, 0.4], [957, 2, 4, 1.04], [148, 1, 4, 1.28], [96, 11, 13, 0.71], [9784, 1, 4, 0.52], [415, 1, 4, 0.48], [9690, 1, 4, 0.37], [411, 2, 4, 0.56], [9691, 1, 4, 0.39], [11739, 2, 4, 1.55], [3048, 3, 4, 0.75], [3429, 15, 4, 0.37], [11767, 1, 4, 0.45], [10408, 10, 6, 1.62], [1654, 2, 4, 0.42], [5584, 3, 4, 1.71], [2331, 1, 4, 0.53], [10410, 10, 9, 1.52], [5164, 1, 4, 0.95], [11164, 1, 4, 1.98], [11504, 2, 4, 0.49], [1492, 1, 4, 0.64], [13928, 2, 4, 0.8], [13893, 2, 4, 0.53], [410, 1, 4, 0.99], [11813, 1, 4, 0.37], [6097, 80, 4, 1.25], [12764, 2, 5, 0.52], [1523, 1, 4, 0.96], [71, 15, 4, 0.58], [972, 1, 4, 0.47], [4253, 1, 4, 0.47], [11235, 2, 4, 0.65], [10411, 10, 6, 1.59], [21269, 3, 4, 0.38], [7567, 3, 4, 1.1], [382, 1, 4, 1.46], [12526, 2, 4, 1.53], [11404, 2, 4, 0.6], [1080, 3, 4, 1.71], [19931, 1, 4, 0.43], [2436, 4, 4, 0.48], [2423, 80, 4, 0.62], [3430, 15, 4, 0.51], [21059, 1, 4, 0.46], [3980, 4, 5, 1.23], [1548, 1, 4, 0.45], [84, 2, 4, 0.38], [305, 2, 191, 3.24], [6935, 2, 365, 6.0], [2778, 2, 206, 2.34], [2775, 2, 206, 2.34], [8648, 2, 298, 3.18], [6936, 2, 365, 5.95], [8650, 2, 298, 2.44], [205, 2, 142, 2.25], [145, 2, 198, 2.24], [3840, 1, 225, 2.19], [7036, 1, 169, 3.59], [2776, 2, 206, 2.34], [2049, 3, 434, 2.23], [615, 2, 144, 2.08], [88, 10, 745, 3.4], [616, 2, 144, 2.08], [141, 2, 204, 3.2], [7004, 1, 53, 1.91], [151, 1, 87, 2.77], [206, 2, 142, 2.42], [11681, 2, 351, 5.24], [8853, 2, 365, 4.84], [1007, 2, 179, 1.84], [9372, 1, 308, 4.4], [990, 2, 69, 2.24], [362, 2, 185, 2.77], [3893, 1, 164, 3.61], [12870, 1, 185, 2.52], [248, 1, 71, 2.83], [8649, 2, 298, 2.27], [8672, 2, 377, 2.12], [417, 2, 204, 3.06], [3889, 1, 164, 3.61], [2497, 2, 269, 2.36], [10993, 2, 72, 2.99], [142, 2, 204, 2.19], [10574, 3, 662, 4.03], [10149, 3, 1181, 2.49], [7084, 3, 170, 2.2], [523, 2, 204, 2.25], [3891, 1, 164, 3.61], [997, 2, 311, 4.24], [1006, 2, 301, 2.42], [21793, 1, 309, 2.92], [11234, 2, 240, 3.46], [22247, 2, 375, 2.49], [1622, 1, 141, 2.16], [229, 1, 108, 4.51], [346, 3, 830, 2.29], [998, 2, 311, 2.55], [12721, 2, 375, 2.44], [94, 4, 159, 4.14], [8104, 1, 271, 2.31], [9491, 21, 2792, 2.18], [2424, 80, 225, 3.26], [13280, 1, 421, 3.76], [972, 3, 783, 2.24], [147, 1, 116, 3.64], [13928, 1, 62, 2.86], [1656, 2, 124, 2.15], [413, 1, 114, 2.38], [11952, 1, 133, 2.49], [7573, 1, 484, 2.71], [76, 2, 144, 3.31], [11769, 1, 214, 2.23], [2774, 2, 269, 2.27], [6158, 2, 171, 4.29]]</t>
-  </si>
-  <si>
-    <t>[[2778, 2, 11, 1.38], [6935, 2, 14, 3.61], [6936, 2, 8, 3.64], [8672, 2, 9, 0.92], [145, 2, 7, 0.8], [2775, 2, 7, 0.95], [2776, 2, 7, 1.54], [146, 2, 7, 0.78], [2327, 2, 8, 1.11], [143, 2, 7, 0.86], [8853, 2, 8, 2.71], [11838, 2, 8, 0.75], [616, 2, 7, 0.88], [12721, 2, 13, 1.35], [2328, 2, 8, 1.23], [2049, 3, 14, 1.0], [11681, 2, 11, 5.63], [362, 2, 7, 1.5], [5493, 2, 7, 0.87], [1124, 2, 10, 0.84], [8650, 2, 8, 2.23], [141, 2, 7, 1.31], [205, 2, 7, 0.91], [11835, 2, 7, 1.01], [2497, 2, 7, 0.68], [11837, 2, 7, 0.89], [8648, 2, 7, 1.84], [3670, 2, 9, 3.17], [3, 2, 8, 0.79], [417, 2, 7, 1.14], [8673, 2, 8, 2.35], [2774, 2, 7, 0.98], [624, 2, 7, 0.91], [6097, 80, 7, 2.78], [206, 2, 7, 1.07], [6497, 1, 7, 2.65], [11836, 2, 7, 0.96], [2057, 3, 8, 0.61], [22247, 2, 8, 0.9], [523, 2, 7, 1.07], [990, 2, 7, 0.8], [593, 2, 8, 1.16], [326, 2, 8, 0.75], [8674, 2, 7, 1.2], [11739, 2, 7, 3.17], [10993, 2, 7, 1.45], [6494, 1, 7, 2.88], [6098, 80, 7, 1.95], [336, 15, 7, 1.28], [60, 3, 10, 2.93], [6097, 29, 7, 2.8], [944, 15, 7, 0.78], [3674, 2, 8, 0.95], [214, 3, 15, 0.9], [1413, 15, 7, 0.76], [3429, 15, 7, 0.71], [411, 2, 7, 1.07], [2422, 80, 7, 2.98], [13260, 29, 7, 0.92], [412, 1, 7, 1.07], [1492, 1, 7, 1.61], [346, 3, 8, 0.86], [346, 1, 7, 0.95], [21712, 3, 21, 1.19], [13033, 3, 8, 2.14], [88, 10, 13, 1.5], [151, 1, 7, 1.64], [9998, 80, 7, 2.59], [1007, 2, 8, 0.67], [10149, 3, 21, 0.98], [1243, 2, 7, 4.67], [6496, 1, 7, 1.67], [11738, 2, 7, 1.92], [435, 2, 7, 1.03], [20252, 2, 7, 1.01], [307, 2, 7, 0.74], [8943, 3, 7, 2.45], [229, 1, 7, 3.16], [186, 3, 15, 0.9], [2422, 29, 7, 2.95], [1163, 3, 7, 2.46], [22558, 3, 8, 0.8], [12269, 2, 7, 3.16], [8944, 3, 7, 1.62], [964, 15, 7, 0.85], [418, 2, 7, 1.41], [963, 3, 7, 0.69], [2821, 3, 13, 1.12], [10407, 10, 12, 3.04], [1490, 1, 7, 0.94], [21713, 3, 13, 0.8], [416, 1, 7, 1.1], [71, 15, 7, 0.98], [6098, 29, 7, 1.96], [13258, 29, 7, 2.52], [2438, 1, 7, 2.11], [8938, 2, 7, 1.98], [5940, 3, 7, 1.67], [5490, 2, 7, 0.94], [5208, 3, 9, 0.96], [1548, 1, 7, 0.87], [20255, 2, 7, 0.97], [21793, 1, 7, 1.27], [1414, 15, 7, 0.82], [13259, 29, 7, 2.74], [2421, 80, 8, 0.66], [10406, 10, 12, 3.4], [432, 3, 7, 0.82], [1413, 16, 7, 0.77], [3478, 2, 7, 2.04], [9784, 1, 7, 0.95], [13023, 3, 10, 1.35], [10408, 10, 10, 2.9], [22125, 2, 7, 0.69], [11404, 2, 7, 1.89], [410, 1, 7, 0.97], [2703, 3, 7, 1.0], [12229, 2, 7, 1.46], [11490, 1, 7, 0.94], [8943, 1, 7, 2.54], [11844, 2, 8, 0.89], [11690, 2, 7, 0.74], [21781, 2, 7, 0.9], [140, 2, 7, 0.76], [12870, 1, 7, 3.07], [7036, 1, 7, 3.51], [5976, 1, 7, 1.15], [5939, 3, 7, 0.96], [10411, 10, 10, 2.98], [10410, 10, 10, 3.12], [13258, 25, 7, 2.55], [424, 11, 15, 1.85], [413, 1, 7, 0.91], [1007, 2, 367, 2.15], [10149, 3, 1220, 2.46], [1243, 2, 128, 6.0], [6496, 1, 55, 3.15], [11738, 2, 77, 3.4], [435, 2, 145, 2.52], [20252, 2, 126, 2.5], [307, 2, 202, 2.22], [8943, 3, 538, 3.93], [229, 1, 111, 4.64], [186, 3, 896, 2.4], [2422, 29, 50, 4.44], [22558, 3, 661, 2.28], [12269, 2, 32, 4.29], [8944, 3, 315, 3.1], [964, 15, 153, 2.33], [418, 2, 192, 2.9], [963, 3, 274, 1.97], [2821, 3, 1782, 2.61], [10407, 10, 1586, 4.52], [1490, 1, 70, 2.42], [21713, 3, 1511, 2.29], [416, 1, 118, 2.59], [71, 15, 317, 2.47], [6098, 29, 51, 3.44], [13258, 29, 53, 4.0], [2438, 1, 71, 3.59], [5940, 3, 359, 3.16], [5490, 2, 147, 2.43], [5208, 3, 763, 2.44], [1548, 1, 140, 2.35], [20255, 2, 126, 2.45], [21793, 1, 319, 2.76], [1414, 15, 134, 2.3], [13259, 29, 47, 4.22], [2421, 80, 254, 2.11], [10406, 10, 2367, 4.9], [432, 3, 411, 2.3], [1413, 16, 67, 2.25], [3478, 2, 102, 3.52], [9784, 1, 98, 2.43], [13023, 3, 809, 2.84], [10408, 10, 1037, 4.39], [22125, 2, 84, 2.17], [11404, 2, 54, 3.02], [410, 1, 143, 2.45], [2703, 3, 439, 2.48], [12229, 2, 203, 2.94], [11490, 1, 147, 2.42], [8943, 1, 134, 4.03], [11844, 2, 371, 2.37], [11690, 2, 413, 2.22], [21781, 2, 141, 2.39], [140, 2, 126, 2.24], [12870, 1, 191, 4.55], [7036, 1, 173, 4.99], [5976, 1, 214, 2.63], [5939, 3, 359, 2.44], [10411, 10, 1037, 4.47], [10410, 10, 1586, 4.6], [13258, 25, 106, 4.03], [424, 11, 275, 2.98], [413, 1, 118, 2.39]]</t>
-  </si>
-  <si>
-    <t>[[141, 2, 7, 1.31], [2328, 2, 8, 1.23], [8650, 2, 8, 2.23], [362, 2, 7, 1.5], [5493, 2, 7, 0.81], [2327, 2, 8, 1.11], [8672, 2, 9, 1.15], [11685, 2, 8, 4.09], [1124, 2, 10, 0.94], [6935, 2, 14, 2.99], [11681, 2, 11, 5.63], [205, 2, 7, 0.99], [8648, 2, 7, 1.84], [6936, 2, 8, 3.03], [11837, 2, 7, 1.05], [248, 1, 7, 1.53], [206, 2, 7, 1.25], [2049, 3, 14, 1.0], [1446, 2, 7, 1.6], [12721, 2, 13, 1.34], [2778, 2, 11, 0.93], [523, 2, 7, 1.07], [615, 2, 7, 0.72], [9507, 3, 7, 1.32], [8676, 2, 8, 0.82], [11739, 2, 7, 3.27], [22247, 2, 8, 1.0], [10574, 3, 10, 2.49], [145, 2, 7, 0.85], [412, 1, 7, 1.03], [59, 3, 8, 0.7], [413, 1, 7, 1.0], [146, 2, 7, 0.83], [76, 2, 7, 2.28], [8938, 2, 7, 2.94], [143, 2, 7, 0.86], [21793, 1, 7, 0.93], [1429, 2, 7, 0.68], [411, 2, 7, 1.25], [8674, 2, 7, 1.46], [11836, 2, 7, 0.74], [6158, 2, 13, 0.69], [990, 2, 7, 0.8], [3495, 3, 21, 1.12], [10149, 3, 21, 0.98], [8673, 2, 8, 2.35], [8939, 2, 7, 0.85], [75, 2, 7, 0.75], [151, 1, 7, 1.64], [144, 2, 7, 0.69], [1504, 2, 9, 1.03], [3848, 2, 7, 1.09], [12373, 1, 11, 1.73], [418, 2, 7, 1.41], [2859, 15, 7, 0.91], [20252, 2, 7, 0.94], [7084, 3, 7, 1.81], [10993, 2, 7, 1.55], [21798, 1, 7, 0.84], [416, 1, 7, 1.04], [11234, 2, 9, 1.26], [9784, 1, 7, 0.95], [88, 10, 13, 1.87], [2424, 80, 8, 1.74], [13034, 3, 8, 2.14], [11808, 1, 7, 0.69], [6494, 1, 7, 2.88], [2423, 80, 8, 1.78], [13928, 1, 7, 1.32], [20927, 1, 7, 1.83], [12526, 2, 7, 3.18], [11844, 2, 8, 0.89], [11811, 1, 7, 2.23], [7004, 1, 7, 0.95], [60, 3, 10, 2.93], [414, 1, 7, 0.98], [11159, 1, 8, 3.45], [11089, 1, 7, 0.86], [3, 2, 8, 0.9], [410, 1, 7, 0.97], [1414, 15, 7, 0.82], [3429, 15, 7, 0.96], [11770, 1, 7, 1.26], [11489, 1, 7, 1.05], [2424, 29, 7, 1.93], [6952, 1, 7, 2.56], [11490, 1, 7, 0.89], [2423, 29, 7, 1.8], [13023, 3, 10, 1.35], [11953, 1, 7, 0.72], [345, 3, 8, 2.81], [5208, 3, 9, 0.96], [11161, 1, 9, 0.96], [2331, 1, 7, 1.05], [1492, 1, 7, 1.61], [10407, 10, 12, 3.04], [950, 1, 7, 2.15], [8274, 3, 7, 1.56], [6098, 80, 7, 1.95], [11504, 2, 7, 1.0], [11954, 1, 7, 2.87], [3430, 15, 7, 1.23], [1339, 3, 17, 4.62], [6497, 1, 7, 2.65], [432, 3, 7, 0.82], [9342, 2, 8, 0.87], [6097, 80, 7, 2.78], [9126, 1, 7, 1.24], [11674, 1, 7, 1.89], [5584, 3, 7, 3.75], [22558, 3, 8, 0.8], [944, 15, 7, 0.78], [10410, 10, 10, 3.12], [10409, 10, 12, 3.28], [20259, 2, 7, 0.91], [11677, 1, 8, 2.01], [9690, 1, 7, 0.91], [22317, 3, 8, 0.89], [9358, 1, 7, 2.4], [9082, 3, 28, 3.0], [8945, 3, 8, 0.83], [10897, 1, 13, 0.68], [952, 4, 7, 4.13], [1413, 15, 7, 0.76], [20555, 2, 7, 1.77], [10406, 10, 12, 3.4], [1414, 16, 7, 0.82], [11485, 24, 7, 3.47], [7708, 2, 7, 0.93], [10408, 10, 10, 2.9], [20196, 2, 7, 1.74], [10516, 3, 8, 1.23], [11491, 2, 7, 1.43], [12526, 2, 371, 4.66], [11844, 2, 371, 2.37], [11811, 1, 605, 3.71], [7004, 1, 107, 2.43], [60, 3, 1086, 4.41], [414, 1, 118, 2.47], [11159, 1, 664, 4.94], [11089, 1, 234, 2.35], [3, 2, 163, 2.38], [410, 1, 143, 2.45], [1414, 15, 134, 2.3], [3429, 15, 27, 2.09], [11770, 1, 293, 2.75], [11489, 1, 147, 2.53], [2424, 29, 46, 3.42], [6952, 1, 258, 4.05], [11490, 1, 147, 2.37], [2423, 29, 50, 3.29], [13023, 3, 809, 2.84], [11953, 1, 241, 2.18], [345, 3, 406, 4.3], [5208, 3, 763, 2.44], [11161, 1, 690, 2.43], [2331, 1, 162, 2.53], [1492, 1, 51, 3.09], [10407, 10, 1586, 4.52], [950, 1, 20, 3.0], [8274, 3, 116, 2.4], [6098, 80, 102, 3.44], [11504, 2, 192, 2.48], [11954, 1, 264, 4.35], [3430, 15, 93, 2.72], [1339, 3, 915, 5.72], [6497, 1, 50, 4.13], [432, 3, 411, 2.3], [9342, 2, 627, 2.36], [6097, 80, 93, 4.26], [9126, 1, 95, 2.72], [11674, 1, 273, 3.37], [5584, 3, 326, 5.22], [22558, 3, 661, 2.28], [944, 15, 59, 2.27], [10410, 10, 1586, 4.6], [10409, 10, 2367, 4.78], [20259, 2, 126, 2.39], [11677, 1, 603, 3.48], [9690, 1, 102, 2.39], [22317, 3, 426, 2.38], [9358, 1, 79, 3.88], [9082, 3, 3305, 4.5], [8945, 3, 844, 2.32], [10897, 1, 476, 2.16], [952, 4, 97, 5.61], [1413, 15, 134, 2.24], [20555, 2, 77, 3.25], [10406, 10, 2367, 4.9], [1414, 16, 67, 2.3], [11485, 24, 285, 4.95], [7708, 2, 240, 2.41], [10408, 10, 1037, 4.39], [20196, 2, 389, 3.22], [10516, 3, 813, 2.71], [11491, 2, 192, 2.91]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 16, 2.58], [362, 2, 7, 1.06], [141, 2, 7, 1.22], [205, 2, 7, 1.43], [2778, 2, 8, 1.02], [1776, 1, 7, 5.04], [593, 2, 11, 1.22], [6936, 2, 10, 2.73], [1007, 2, 10, 0.69], [305, 2, 7, 2.4], [2328, 2, 8, 0.7], [206, 2, 7, 1.25], [7886, 4, 8, 0.73], [8648, 2, 8, 1.4], [151, 1, 7, 1.42], [8672, 2, 10, 0.83], [88, 10, 15, 1.88], [83, 2, 7, 0.86], [8650, 2, 7, 2.47], [5151, 2, 7, 3.83], [248, 1, 7, 1.31], [412, 1, 7, 1.85], [990, 2, 7, 1.03], [11681, 2, 8, 4.49], [2050, 3, 8, 0.72], [76, 2, 7, 2.08], [1777, 1, 7, 1.58], [10149, 3, 24, 3.53], [146, 2, 7, 0.99], [2057, 3, 8, 2.02], [21798, 1, 7, 0.79], [5005, 1, 7, 0.72], [3478, 2, 7, 1.87], [346, 1, 7, 1.0], [45, 2, 7, 2.8], [413, 1, 7, 1.04], [6158, 2, 9, 0.78], [74, 1, 7, 2.78], [335, 3, 18, 1.33], [7036, 1, 7, 2.54], [1446, 2, 7, 1.31], [167, 3, 8, 0.85], [1429, 2, 7, 1.01], [168, 3, 8, 1.45], [7084, 3, 7, 0.74], [22247, 2, 9, 1.05], [21793, 1, 8, 1.26], [3495, 3, 21, 0.96], [5081, 2, 7, 0.68], [308, 1, 7, 2.86], [13028, 3, 7, 1.07], [84, 2, 7, 0.7], [96, 11, 23, 0.83], [12870, 1, 7, 2.23], [8649, 2, 7, 1.24], [3889, 1, 7, 1.56], [10825, 21, 14, 0.91], [418, 2, 7, 0.99], [23, 1, 7, 2.0], [1492, 1, 7, 0.93], [94, 4, 7, 3.19], [410, 1, 7, 1.9], [3893, 1, 7, 1.28], [1504, 2, 8, 0.89], [145, 2, 7, 1.86], [11737, 2, 7, 0.92], [3891, 1, 7, 1.28], [1490, 1, 7, 0.83], [25, 1, 7, 1.86], [1654, 2, 7, 0.79], [8853, 2, 11, 2.69], [22179, 1, 7, 0.9], [95, 3, 22, 0.77], [9827, 3, 7, 0.96], [415, 1, 7, 0.85], [1656, 2, 7, 0.79], [12721, 2, 10, 0.9], [5086, 1, 7, 2.14], [411, 2, 7, 1.25], [229, 1, 7, 3.16], [11954, 1, 7, 0.96], [8651, 2, 7, 2.23], [432, 3, 8, 0.72], [20256, 2, 7, 0.76], [346, 3, 8, 0.91], [11914, 1, 7, 1.19], [950, 1, 7, 1.37], [7567, 3, 7, 2.14], [997, 2, 7, 0.89], [11811, 1, 8, 0.63], [11767, 1, 7, 0.89], [998, 2, 7, 0.86], [9829, 3, 7, 0.71], [5660, 2, 7, 1.5], [1070, 7, 13, 0.88], [9372, 1, 7, 3.12], [5209, 3, 8, 0.64], [8898, 3, 8, 3.71], [35, 1, 7, 1.14], [8926, 1, 7, 2.36], [9691, 1, 7, 0.93], [5584, 3, 7, 3.06], [1413, 15, 7, 2.41], [11490, 1, 7, 0.83], [336, 15, 7, 1.25], [2775, 2, 7, 1.04], [6097, 29, 7, 2.55], [307, 2, 7, 1.12], [24, 1, 7, 1.86], [12661, 1, 7, 1.7], [8945, 3, 8, 1.47], [11808, 1, 8, 0.64], [82, 2, 7, 0.83], [434, 2, 7, 0.81], [5005, 3, 10, 0.86], [11491, 2, 7, 1.3], [27, 1, 7, 1.86], [97, 11, 21, 1.79], [2104, 3, 12, 1.1], [66, 1, 7, 1.31], [8104, 1, 7, 0.84], [424, 11, 15, 0.65], [2322, 2, 7, 0.89], [2109, 3, 15, 0.86], [6098, 80, 7, 2.55], [6097, 80, 7, 2.53], [952, 4, 7, 3.98], [3980, 4, 8, 2.59], [6098, 29, 7, 2.55], [20255, 2, 7, 0.76], [1414, 15, 7, 2.43], [996, 2, 7, 0.83], [11489, 1, 7, 0.88], [1490, 1, 60, 1.82], [25, 1, 127, 2.85], [1654, 2, 109, 1.78], [8853, 2, 327, 3.68], [22179, 1, 192, 1.89], [95, 3, 1301, 1.77], [9827, 3, 101, 1.95], [415, 1, 100, 1.84], [1656, 2, 109, 1.78], [12721, 2, 332, 1.89], [5086, 1, 211, 3.13], [411, 2, 126, 2.25], [229, 1, 95, 4.15], [11954, 1, 229, 1.95], [8651, 2, 263, 3.22], [432, 3, 352, 1.71], [20256, 2, 108, 1.75], [346, 3, 731, 1.9], [11914, 1, 100, 2.18], [950, 1, 68, 2.36], [7567, 3, 81, 3.13], [997, 2, 280, 1.89], [11811, 1, 537, 1.63], [11767, 1, 188, 1.88], [998, 2, 280, 1.86], [9829, 3, 80, 1.7], [5660, 2, 203, 2.5], [1070, 7, 690, 1.88], [9372, 1, 271, 4.11], [5209, 3, 657, 1.63], [8898, 3, 337, 4.71], [35, 1, 129, 2.13], [8926, 1, 72, 3.36], [9691, 1, 87, 1.92], [5584, 3, 285, 4.05], [1413, 15, 112, 3.4], [11490, 1, 126, 1.82], [336, 15, 133, 2.24], [2775, 2, 181, 2.03], [6097, 29, 40, 3.54], [307, 2, 170, 2.11], [24, 1, 127, 2.85], [12661, 1, 92, 2.7], [8945, 3, 712, 2.46], [11808, 1, 555, 1.64], [82, 2, 70, 1.82], [434, 2, 125, 1.8], [5005, 3, 1082, 1.86], [11491, 2, 163, 2.29], [27, 1, 127, 2.85], [97, 11, 242, 2.41], [2104, 3, 409, 2.09], [66, 1, 46, 2.3], [8104, 1, 239, 1.83], [424, 11, 632, 1.64], [2322, 2, 126, 1.89], [2109, 3, 569, 1.85], [6098, 80, 87, 3.54], [6097, 80, 80, 3.52], [952, 4, 83, 4.97], [3980, 4, 555, 3.59], [6098, 29, 44, 3.54], [20255, 2, 108, 1.76], [1414, 15, 112, 3.42], [996, 2, 280, 1.82], [11489, 1, 126, 1.88]]</t>
-  </si>
-  <si>
-    <t>[[88, 10, 16, 2.06], [8915, 2, 8, 1.05], [6935, 2, 11, 6.0], [2778, 2, 7, 0.99], [305, 2, 7, 1.89], [2328, 2, 7, 1.0], [615, 2, 7, 0.74], [616, 2, 7, 0.74], [6936, 2, 8, 4.6], [8650, 2, 7, 1.1], [8648, 2, 7, 1.84], [2049, 3, 10, 1.0], [7004, 1, 7, 0.76], [2775, 2, 7, 0.99], [7036, 1, 7, 2.24], [1124, 2, 8, 1.83], [3840, 1, 7, 0.85], [205, 2, 7, 0.91], [94, 4, 7, 2.79], [151, 1, 7, 1.42], [990, 2, 7, 0.89], [3893, 1, 7, 2.26], [8853, 2, 7, 3.49], [2776, 2, 7, 0.99], [3891, 1, 7, 2.26], [206, 2, 7, 1.07], [362, 2, 7, 1.42], [141, 2, 7, 1.86], [11404, 2, 7, 1.53], [3889, 1, 7, 2.26], [10574, 3, 9, 2.69], [2497, 2, 7, 1.01], [11234, 2, 7, 2.11], [8649, 2, 7, 0.92], [1007, 2, 8, 0.69], [11681, 2, 11, 3.89], [7005, 1, 7, 0.76], [12870, 1, 7, 1.17], [10149, 3, 17, 1.14], [145, 2, 7, 0.9], [7084, 3, 7, 0.85], [10993, 2, 7, 1.64], [20927, 1, 7, 0.68], [214, 3, 15, 0.72], [248, 1, 7, 1.49], [21793, 1, 7, 1.58], [3980, 4, 8, 2.43], [5165, 1, 7, 3.26], [346, 3, 7, 0.95], [2436, 4, 7, 2.54], [3, 2, 7, 0.9], [997, 2, 7, 2.89], [998, 2, 7, 1.2], [972, 3, 8, 0.9], [8672, 2, 8, 0.78], [2424, 80, 8, 1.91], [9372, 1, 7, 3.05], [229, 1, 7, 3.16], [11953, 1, 7, 0.81], [417, 2, 7, 1.71], [5165, 2, 10, 3.26], [3495, 3, 16, 0.99], [6158, 2, 8, 3.14], [957, 2, 7, 2.99], [1006, 2, 7, 1.07], [8651, 2, 7, 1.52], [11770, 1, 7, 1.23], [9, 1, 7, 1.87], [74, 1, 7, 2.55], [142, 2, 7, 0.84], [6497, 1, 7, 2.18], [11954, 1, 7, 1.72], [5434, 1, 7, 0.92], [3982, 3, 15, 1.77], [12229, 2, 7, 0.92], [5076, 1, 7, 0.8], [11952, 1, 7, 1.34], [9082, 3, 34, 3.08], [9491, 21, 17, 0.8], [2774, 2, 7, 0.92], [335, 3, 13, 1.24], [523, 2, 7, 0.91], [2423, 80, 7, 1.19], [823, 1, 7, 2.71], [12721, 2, 7, 1.1], [346, 1, 7, 0.97], [3981, 3, 16, 2.03], [10407, 10, 12, 3.12], [1339, 3, 17, 4.62], [1492, 1, 7, 1.24], [6496, 1, 7, 2.55], [4032, 29, 7, 0.9], [5584, 3, 7, 3.36], [5946, 1, 7, 0.89], [10388, 2, 7, 1.93], [2438, 2, 8, 1.37], [2424, 29, 7, 2.11], [11813, 1, 7, 0.71], [96, 11, 21, 3.06], [3900, 3, 7, 4.57], [8943, 3, 7, 2.45], [12526, 2, 7, 2.95], [11179, 1, 7, 0.93], [4253, 1, 7, 0.9], [71, 15, 7, 1.13], [12764, 2, 8, 0.92], [6097, 80, 7, 2.47], [3429, 15, 7, 0.96], [13893, 2, 7, 1.67], [3975, 4, 7, 2.36], [8898, 3, 7, 2.78], [22317, 3, 7, 0.87], [412, 1, 7, 1.23], [11236, 2, 7, 0.95], [972, 1, 7, 0.91], [432, 3, 7, 0.82], [10410, 10, 15, 3.0], [6489, 11, 37, 2.24], [11504, 2, 7, 0.93], [1243, 2, 7, 4.29], [10386, 2, 7, 4.06], [76, 2, 7, 1.97], [8676, 2, 7, 0.94], [12212, 29, 7, 1.02], [11490, 1, 7, 0.84], [11164, 1, 7, 3.97], [10093, 3, 22, 3.02], [11235, 2, 7, 1.25], [21712, 3, 21, 1.19], [8274, 3, 7, 0.69], [10408, 10, 10, 3.19], [22247, 2, 7, 1.14], [9690, 1, 7, 0.71], [9, 1, 11, 2.64], [74, 1, 268, 3.9], [142, 2, 204, 2.19], [6497, 1, 49, 3.53], [11954, 1, 99, 2.74], [5434, 1, 64, 2.27], [3982, 3, 1031, 3.11], [12229, 2, 201, 2.26], [5076, 1, 175, 2.14], [11952, 1, 133, 2.49], [9082, 3, 3199, 4.42], [9491, 21, 2792, 2.18], [2774, 2, 269, 2.27], [335, 3, 1765, 2.57], [523, 2, 204, 2.25], [2423, 80, 245, 2.54], [823, 1, 53, 4.05], [12721, 2, 375, 2.44], [346, 1, 208, 2.31], [3981, 3, 2103, 3.4], [10407, 10, 1536, 4.48], [1339, 3, 1181, 5.78], [1492, 1, 49, 2.58], [6496, 1, 53, 3.89], [4032, 29, 127, 2.25], [5584, 3, 321, 4.71], [5946, 1, 165, 2.24], [10388, 2, 283, 3.28], [2438, 2, 821, 2.72], [2424, 29, 45, 3.46], [11813, 1, 417, 2.05], [8943, 3, 521, 3.8], [12526, 2, 360, 4.29], [11179, 1, 115, 2.27], [4253, 1, 224, 2.24], [71, 15, 306, 2.48], [12764, 2, 954, 2.26], [6097, 80, 91, 3.81], [3429, 15, 35, 2.12], [13893, 2, 366, 3.02], [3975, 4, 629, 3.7], [8898, 3, 387, 4.13], [22317, 3, 413, 2.22], [412, 1, 109, 2.57], [11236, 2, 291, 2.3], [972, 1, 131, 2.25], [432, 3, 398, 2.17], [10410, 10, 1536, 4.36], [6489, 11, 1505, 3.57], [11504, 2, 185, 2.28], [1243, 2, 125, 5.63], [10386, 2, 283, 5.4], [76, 2, 144, 3.31], [8676, 2, 377, 2.29], [12212, 29, 157, 2.37], [11490, 1, 142, 2.19], [11164, 1, 550, 5.32], [10093, 3, 1074, 4.36], [11235, 2, 284, 2.6], [21712, 3, 2844, 2.52], [10408, 10, 1004, 4.52], [22247, 2, 375, 2.49], [9690, 1, 25, 1.47]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 18, 2.84], [141, 2, 7, 1.06], [2778, 2, 8, 1.23], [362, 2, 7, 2.04], [6936, 2, 13, 2.84], [8648, 2, 7, 2.01], [8650, 2, 7, 1.0], [11681, 2, 22, 6.0], [2328, 2, 7, 1.1], [205, 2, 7, 0.97], [1446, 2, 7, 0.77], [2049, 3, 14, 0.83], [8649, 2, 7, 2.46], [2775, 2, 7, 2.05], [8853, 2, 11, 3.13], [361, 2, 7, 1.46], [2776, 2, 7, 2.05], [3840, 1, 7, 0.75], [1429, 2, 7, 0.99], [523, 2, 7, 1.53], [7036, 1, 7, 1.92], [206, 2, 7, 0.85], [9507, 3, 7, 1.32], [413, 1, 7, 1.11], [159, 3, 10, 0.89], [151, 1, 7, 1.64], [412, 1, 7, 1.49], [1124, 2, 8, 0.69], [990, 2, 7, 1.63], [11581, 29, 8, 0.85], [615, 2, 7, 0.76], [5165, 1, 7, 2.71], [21793, 1, 7, 1.65], [417, 2, 7, 1.53], [9372, 1, 7, 3.29], [6097, 80, 7, 3.02], [248, 1, 7, 0.72], [20258, 2, 7, 1.36], [142, 2, 7, 1.53], [616, 2, 7, 0.96], [21798, 1, 7, 0.84], [6952, 1, 7, 2.27], [11234, 2, 8, 0.66], [8089, 1, 7, 2.38], [3670, 2, 8, 3.01], [76, 2, 7, 2.14], [5165, 2, 12, 2.7], [3891, 1, 7, 1.49], [10574, 3, 8, 1.92], [345, 3, 7, 3.06], [2424, 80, 7, 2.45], [7084, 3, 7, 1.92], [6097, 29, 7, 3.02], [3893, 1, 7, 1.49], [10993, 2, 7, 1.69], [346, 3, 7, 1.58], [3334, 5, 7, 3.79], [11671, 1, 7, 0.82], [1886, 2, 7, 0.91], [1654, 2, 7, 0.85], [11089, 1, 7, 1.68], [10517, 29, 7, 1.75], [11504, 2, 7, 1.06], [2423, 80, 7, 2.09], [6098, 80, 7, 1.92], [11953, 1, 7, 0.72], [11769, 1, 7, 0.69], [5151, 2, 7, 3.55], [11952, 1, 7, 0.97], [11491, 2, 7, 1.01], [20256, 2, 7, 0.96], [432, 3, 7, 1.2], [13244, 1, 7, 0.82], [995, 2, 7, 3.02], [1490, 1, 7, 1.45], [2424, 29, 7, 2.39], [418, 2, 7, 1.95], [11737, 2, 7, 0.83], [4032, 29, 7, 0.94], [3, 2, 7, 0.79], [6494, 1, 7, 2.88], [411, 2, 7, 0.93], [972, 3, 8, 0.82], [20252, 2, 7, 1.08], [1700, 2, 7, 1.27], [2160, 68, 7, 0.7], [11426, 25, 7, 1.73], [6158, 2, 8, 0.76], [229, 1, 7, 1.06], [147, 1, 7, 2.27], [13028, 3, 7, 5.56], [11772, 1, 7, 0.88], [416, 1, 7, 0.89], [1413, 15, 7, 0.78], [346, 1, 7, 1.59], [13034, 3, 8, 1.5], [8286, 2, 8, 0.66], [10149, 3, 24, 0.86], [10, 2, 7, 0.8], [1703, 2, 7, 0.96], [2805, 137, 7, 2.49], [2331, 1, 7, 3.66], [12304, 1, 7, 1.42], [11767, 1, 7, 0.76], [75, 2, 7, 0.97], [414, 1, 7, 1.0], [11813, 1, 7, 0.9], [3575, 25, 7, 0.99], [11814, 1, 7, 0.92], [11490, 1, 7, 0.89], [1701, 2, 7, 2.41], [3577, 25, 7, 1.05], [9784, 1, 7, 0.77], [11586, 1, 11, 2.23], [159, 1, 7, 0.83], [12764, 2, 12, 0.99], [13280, 1, 7, 1.33], [410, 1, 7, 1.03], [12979, 25, 13, 1.27], [2438, 2, 10, 1.6], [9998, 80, 7, 3.0], [4253, 1, 7, 0.85], [11585, 29, 7, 2.25], [5209, 3, 8, 0.64], [950, 1, 7, 1.53], [3478, 2, 7, 0.98], [13893, 2, 7, 2.31], [6098, 29, 7, 1.92], [439, 1, 7, 2.95], [9491, 21, 13, 0.8], [12526, 2, 7, 1.08], [5005, 3, 8, 0.8], [12269, 2, 7, 2.52], [11952, 1, 245, 2.16], [11491, 2, 170, 2.2], [20256, 2, 113, 2.15], [432, 3, 367, 2.39], [13244, 1, 60, 2.0], [995, 2, 291, 4.21], [1490, 1, 62, 2.63], [2424, 29, 41, 3.58], [418, 2, 170, 3.13], [11737, 2, 69, 2.02], [4032, 29, 116, 2.13], [3, 2, 147, 1.98], [6494, 1, 61, 4.07], [411, 2, 132, 2.12], [972, 3, 722, 2.01], [20252, 2, 110, 2.26], [1700, 2, 86, 2.46], [2160, 68, 161, 1.89], [11426, 25, 143, 2.92], [6158, 2, 317, 1.95], [229, 1, 101, 2.25], [147, 1, 107, 3.45], [13028, 3, 176, 6.0], [11772, 1, 265, 2.07], [416, 1, 104, 2.08], [1413, 15, 119, 1.96], [346, 1, 190, 2.78], [13034, 3, 715, 2.68], [8286, 2, 582, 1.85], [10149, 3, 1083, 2.06], [10, 2, 130, 1.99], [1703, 2, 198, 2.15], [2805, 137, 222, 3.67], [2331, 1, 141, 4.84], [12304, 1, 132, 2.6], [11767, 1, 170, 1.91], [75, 2, 178, 2.16], [414, 1, 104, 2.18], [11813, 1, 375, 2.1], [3575, 25, 123, 2.18], [11814, 1, 268, 2.11], [11490, 1, 132, 2.07], [1701, 2, 198, 3.6], [3577, 25, 107, 2.24], [9784, 1, 87, 1.95], [11586, 1, 454, 3.42], [159, 1, 47, 2.01], [12764, 2, 875, 2.19], [13280, 1, 386, 2.51], [410, 1, 126, 2.22], [12979, 25, 787, 2.46], [2438, 2, 753, 2.78], [9998, 80, 143, 4.18], [4253, 1, 204, 2.03], [11585, 29, 207, 3.44], [5209, 3, 293, 1.57], [950, 1, 71, 2.72], [3478, 2, 91, 2.16], [13893, 2, 331, 3.49], [6098, 29, 45, 3.1], [439, 1, 102, 4.14], [9491, 21, 2560, 1.96], [12526, 2, 332, 2.26], [5005, 3, 1127, 1.98], [12269, 2, 77, 3.71]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 10, 3.91], [305, 2, 7, 3.34], [2778, 2, 8, 1.28], [130, 1, 7, 2.63], [205, 2, 7, 0.96], [616, 2, 7, 0.88], [6936, 2, 9, 3.93], [1504, 2, 8, 0.95], [88, 10, 15, 1.8], [8648, 2, 7, 1.66], [7036, 1, 7, 2.12], [8915, 2, 8, 2.6], [326, 2, 7, 0.9], [589, 2, 8, 1.04], [593, 2, 9, 0.81], [8650, 2, 7, 1.1], [3893, 1, 7, 2.14], [8853, 2, 8, 3.93], [2775, 2, 7, 0.93], [3840, 1, 7, 0.72], [141, 2, 7, 1.55], [11681, 2, 9, 2.95], [2327, 2, 7, 1.15], [206, 2, 7, 0.73], [151, 1, 7, 1.42], [3891, 1, 7, 2.14], [146, 2, 7, 2.94], [2050, 3, 8, 1.68], [2497, 2, 7, 1.04], [3889, 1, 7, 1.28], [11685, 2, 8, 3.15], [2055, 3, 7, 2.27], [5491, 2, 7, 0.91], [12870, 1, 7, 0.94], [8672, 2, 8, 0.9], [2054, 3, 8, 1.84], [21798, 1, 7, 1.82], [8938, 2, 7, 0.76], [624, 2, 7, 0.67], [434, 2, 7, 0.75], [2057, 3, 8, 1.68], [2776, 2, 7, 1.79], [362, 2, 7, 1.38], [3980, 4, 8, 2.79], [13028, 3, 7, 1.25], [8649, 2, 7, 1.81], [5208, 3, 8, 0.64], [990, 2, 7, 0.84], [1006, 2, 7, 1.09], [10574, 3, 8, 2.4], [22179, 1, 7, 1.66], [10993, 2, 7, 0.88], [3495, 3, 21, 0.99], [9760, 29, 7, 0.94], [94, 4, 7, 3.19], [7084, 3, 7, 1.12], [214, 3, 15, 0.86], [10149, 3, 21, 1.92], [21793, 1, 7, 3.63], [3975, 4, 7, 2.49], [8939, 2, 7, 0.74], [6158, 2, 8, 2.7], [5946, 1, 7, 0.86], [997, 2, 7, 3.35], [11953, 1, 7, 0.97], [2774, 2, 7, 0.76], [11772, 1, 7, 1.54], [1492, 1, 7, 0.86], [998, 2, 7, 3.17], [346, 3, 7, 1.34], [3982, 3, 17, 2.34], [3981, 3, 21, 2.14], [996, 2, 7, 3.6], [6497, 1, 7, 0.98], [229, 1, 7, 3.16], [336, 15, 7, 1.06], [11767, 1, 7, 2.54], [12721, 2, 7, 1.4], [972, 3, 8, 0.82], [955, 2, 7, 1.41], [9372, 1, 7, 3.5], [13034, 3, 8, 2.48], [2104, 3, 10, 1.02], [11769, 1, 7, 1.85], [7567, 3, 7, 2.22], [11179, 1, 7, 0.93], [12212, 29, 7, 0.94], [1413, 15, 7, 0.88], [11490, 1, 7, 1.07], [11770, 1, 7, 1.05], [1126, 2, 7, 0.71], [286, 3, 7, 1.93], [11952, 1, 7, 0.81], [10388, 2, 7, 4.07], [22247, 2, 7, 1.75], [432, 3, 7, 0.89], [8673, 2, 7, 2.94], [411, 2, 7, 0.94], [12271, 2, 7, 1.22], [10936, 2, 7, 1.97], [4253, 1, 7, 2.31], [4176, 4, 7, 2.57], [11085, 2, 8, 2.53], [1274, 1, 7, 1.55], [410, 1, 7, 1.9], [8676, 2, 7, 0.92], [2436, 4, 7, 4.91], [22317, 3, 7, 0.97], [11808, 1, 7, 1.81], [5209, 3, 7, 0.72], [76, 2, 7, 2.11], [11954, 1, 7, 2.57], [10408, 10, 10, 2.64], [21269, 3, 7, 6.0], [1277, 1, 7, 3.21], [13023, 3, 8, 2.22], [1490, 1, 7, 2.7], [5076, 1, 8, 1.64], [10386, 2, 7, 4.85], [345, 3, 7, 2.7], [11489, 1, 7, 0.84], [346, 1, 7, 1.33], [10939, 2, 7, 1.97], [12526, 2, 7, 1.85], [11089, 1, 7, 1.11], [9784, 1, 7, 0.86], [361, 2, 7, 1.0], [11814, 1, 7, 0.92], [590, 15, 7, 1.34], [10407, 10, 10, 1.96], [96, 11, 21, 2.51], [10631, 2, 7, 1.14], [98, 11, 17, 3.94], [346, 3, 764, 2.55], [3982, 3, 949, 3.54], [3981, 3, 1937, 3.34], [996, 2, 275, 4.82], [6497, 1, 46, 2.2], [229, 1, 99, 4.38], [336, 15, 139, 2.28], [11767, 1, 195, 3.76], [12721, 2, 345, 2.62], [972, 3, 725, 2.03], [955, 2, 130, 2.63], [9372, 1, 283, 4.72], [13034, 3, 707, 3.7], [2104, 3, 427, 2.24], [11769, 1, 195, 3.08], [7567, 3, 85, 3.44], [11179, 1, 107, 2.15], [12212, 29, 144, 2.16], [1413, 15, 119, 2.1], [11490, 1, 131, 2.29], [11770, 1, 263, 2.27], [1126, 2, 277, 1.93], [286, 3, 171, 3.15], [11952, 1, 246, 2.02], [10388, 2, 261, 5.29], [22247, 2, 345, 2.97], [432, 3, 368, 2.1], [8673, 2, 347, 4.16], [411, 2, 131, 2.16], [12271, 2, 77, 2.44], [10936, 2, 163, 3.19], [4253, 1, 205, 3.53], [4176, 4, 580, 3.79], [11085, 2, 643, 3.75], [1274, 1, 98, 2.76], [410, 1, 36, 2.62], [8676, 2, 347, 2.14], [2436, 4, 136, 6.0], [22317, 3, 380, 2.18], [11808, 1, 552, 3.03], [5209, 3, 196, 1.44], [76, 2, 133, 3.32], [11954, 1, 237, 3.79], [10408, 10, 924, 3.87], [21269, 3, 354, 6.0], [1277, 1, 232, 4.43], [13023, 3, 707, 3.44], [1490, 1, 62, 3.92], [5076, 1, 156, 2.86], [10386, 2, 261, 6.0], [345, 3, 354, 3.92], [11489, 1, 131, 2.06], [346, 1, 191, 2.55], [10939, 2, 163, 3.19], [12526, 2, 330, 3.07], [11089, 1, 208, 2.33], [9784, 1, 88, 2.08], [361, 2, 188, 2.22], [11814, 1, 269, 2.14], [590, 15, 123, 2.56], [10407, 10, 1443, 3.18], [96, 11, 996, 3.72], [10631, 2, 259, 2.36], [98, 11, 996, 5.15]]</t>
-  </si>
-  <si>
-    <t>[[2328, 2, 8, 1.23], [6935, 2, 14, 3.61], [141, 2, 7, 1.19], [2778, 2, 11, 1.25], [143, 2, 7, 0.86], [8650, 2, 8, 2.23], [2327, 2, 8, 1.11], [145, 2, 7, 0.85], [8672, 2, 9, 1.57], [6936, 2, 8, 3.64], [362, 2, 7, 1.5], [205, 2, 7, 0.91], [146, 2, 7, 0.83], [11681, 2, 11, 5.63], [5493, 2, 7, 0.76], [361, 2, 7, 1.26], [11837, 2, 7, 1.05], [417, 2, 7, 1.02], [1005, 2, 7, 0.76], [8648, 2, 7, 1.84], [523, 2, 7, 0.92], [2049, 3, 14, 1.0], [8853, 2, 8, 2.71], [615, 2, 7, 0.86], [206, 2, 7, 1.07], [1504, 2, 9, 1.73], [12721, 2, 13, 1.34], [144, 2, 7, 0.69], [8915, 2, 8, 0.84], [9507, 3, 7, 1.32], [990, 2, 7, 0.8], [434, 2, 7, 0.7], [11739, 2, 7, 3.08], [8673, 2, 8, 2.35], [2776, 2, 7, 1.79], [435, 2, 7, 1.11], [76, 2, 7, 2.28], [11234, 2, 9, 1.1], [11738, 2, 7, 1.87], [1007, 2, 8, 0.67], [151, 1, 7, 1.64], [2423, 29, 7, 1.8], [2424, 29, 7, 1.93], [8676, 2, 8, 0.86], [88, 10, 13, 1.5], [8649, 2, 7, 1.81], [2424, 80, 8, 1.74], [2423, 80, 8, 1.78], [1413, 15, 7, 0.78], [3670, 2, 9, 2.89], [12720, 2, 7, 1.04], [2497, 2, 7, 1.73], [10574, 3, 10, 2.49], [2859, 15, 7, 1.08], [3, 2, 8, 0.9], [412, 1, 7, 1.01], [10149, 3, 21, 0.98], [1339, 3, 17, 4.62], [346, 3, 8, 0.86], [6497, 1, 7, 2.65], [11919, 1, 7, 0.93], [3478, 2, 7, 2.04], [74, 1, 7, 2.89], [60, 3, 10, 2.93], [346, 1, 7, 0.95], [7036, 1, 7, 3.76], [7004, 1, 7, 1.01], [411, 2, 7, 1.07], [2774, 2, 7, 1.72], [413, 1, 7, 0.91], [13928, 1, 7, 1.36], [11089, 1, 7, 0.86], [1339, 1, 7, 2.53], [6097, 80, 7, 2.78], [418, 2, 7, 1.41], [12526, 2, 7, 3.18], [6494, 1, 7, 2.88], [10993, 2, 7, 1.55], [1050, 2, 7, 0.69], [1492, 1, 7, 1.61], [950, 1, 7, 2.15], [22317, 3, 8, 0.89], [11844, 2, 8, 0.89], [1490, 1, 7, 0.94], [439, 1, 7, 4.79], [6630, 3, 7, 3.48], [3893, 1, 7, 2.14], [22558, 3, 8, 0.8], [6952, 1, 7, 2.56], [6098, 80, 7, 1.95], [2422, 80, 7, 2.98], [3495, 3, 21, 1.12], [1243, 2, 7, 4.67], [5208, 3, 9, 0.96], [229, 1, 7, 3.16], [94, 4, 7, 2.29], [1413, 16, 7, 0.79], [13260, 29, 7, 0.87], [247, 1, 7, 0.93], [9784, 1, 7, 0.95], [3889, 1, 7, 2.14], [7707, 2, 7, 0.9], [565, 2, 8, 0.72], [7708, 2, 7, 0.92], [18964, 1, 7, 2.1], [11490, 1, 7, 0.94], [963, 3, 7, 0.69], [214, 3, 15, 0.9], [9049, 2, 7, 1.55], [21793, 1, 7, 0.93], [6098, 29, 7, 1.96], [2331, 1, 7, 1.0], [3674, 2, 8, 0.95], [414, 1, 7, 1.05], [7703, 2, 7, 0.73], [416, 1, 7, 1.1], [410, 1, 7, 1.04], [11491, 2, 7, 1.43], [149, 2, 7, 2.46], [2805, 137, 8, 1.19], [20555, 2, 7, 1.59], [23275, 2, 7, 1.9], [147, 1, 7, 2.5], [71, 15, 7, 0.98], [1274, 1, 7, 2.36], [9372, 1, 7, 3.71], [3430, 15, 7, 1.18], [2422, 29, 7, 2.95], [11671, 1, 8, 0.74], [942, 3, 7, 2.5], [345, 3, 8, 1.31], [13263, 29, 7, 0.87], [6097, 29, 7, 2.8], [413, 1, 118, 2.39], [13928, 1, 65, 2.84], [11089, 1, 234, 2.35], [1339, 1, 101, 4.01], [6097, 80, 93, 4.26], [418, 2, 192, 2.9], [12526, 2, 371, 4.66], [6494, 1, 68, 4.36], [10993, 2, 74, 3.03], [1050, 2, 38, 1.53], [1492, 1, 51, 3.09], [950, 1, 20, 3.0], [22317, 3, 426, 2.38], [11844, 2, 371, 2.37], [1490, 1, 70, 2.42], [439, 1, 115, 6.0], [6630, 3, 126, 4.96], [3893, 1, 169, 3.62], [22558, 3, 661, 2.28], [6952, 1, 258, 4.05], [6098, 80, 102, 3.44], [2422, 80, 249, 4.47], [3495, 3, 1311, 2.61], [1243, 2, 128, 6.0], [5208, 3, 763, 2.44], [229, 1, 111, 4.64], [94, 4, 163, 3.77], [1413, 16, 67, 2.27], [13260, 29, 98, 2.35], [247, 1, 121, 2.41], [9784, 1, 98, 2.43], [3889, 1, 169, 3.62], [7707, 2, 238, 2.38], [565, 2, 239, 2.2], [7708, 2, 240, 2.41], [18964, 1, 91, 3.59], [11490, 1, 147, 2.42], [963, 3, 274, 1.97], [214, 3, 917, 2.38], [9049, 2, 75, 3.03], [21793, 1, 320, 2.41], [6098, 29, 51, 3.44], [2331, 1, 162, 2.48], [3674, 2, 345, 2.43], [414, 1, 118, 2.53], [7703, 2, 240, 2.22], [416, 1, 118, 2.59], [410, 1, 142, 2.52], [11491, 2, 192, 2.91], [149, 2, 120, 3.94], [2805, 137, 249, 2.68], [20555, 2, 77, 3.07], [23275, 2, 95, 3.38], [147, 1, 120, 3.98], [71, 15, 317, 2.47], [1274, 1, 110, 3.85], [9372, 1, 315, 5.19], [3430, 15, 93, 2.66], [2422, 29, 50, 4.44], [11671, 1, 421, 2.23], [942, 3, 397, 3.98], [345, 3, 407, 2.8], [13263, 29, 98, 2.35], [6097, 29, 47, 4.28]]</t>
-  </si>
-  <si>
-    <t>[[3, 2, 7, 0.91], [8672, 2, 10, 1.4], [2049, 3, 15, 1.0], [589, 2, 10, 0.78], [6935, 2, 17, 2.57], [205, 2, 7, 1.97], [7630, 2, 13, 4.14], [143, 2, 7, 0.86], [144, 2, 7, 0.87], [593, 2, 10, 1.21], [75, 2, 7, 0.8], [8915, 2, 10, 1.09], [2778, 2, 8, 1.13], [12721, 2, 10, 0.74], [7885, 4, 8, 0.69], [6936, 2, 10, 2.43], [206, 2, 7, 1.25], [2328, 2, 8, 0.86], [1776, 1, 7, 3.1], [8648, 2, 7, 1.85], [5151, 2, 7, 3.46], [151, 1, 7, 1.64], [1777, 1, 7, 2.23], [141, 2, 7, 0.93], [8650, 2, 7, 2.36], [88, 10, 17, 2.54], [74, 1, 7, 1.98], [248, 1, 7, 1.63], [990, 2, 7, 0.69], [7004, 1, 7, 0.75], [362, 2, 7, 1.34], [76, 2, 7, 2.47], [1492, 1, 7, 1.04], [8649, 2, 7, 1.57], [3889, 1, 7, 2.35], [7005, 1, 7, 0.87], [410, 1, 7, 0.91], [12870, 1, 7, 0.95], [10825, 21, 13, 0.99], [307, 2, 7, 1.07], [1429, 2, 7, 0.73], [10149, 3, 21, 1.26], [7084, 3, 7, 1.68], [5081, 2, 7, 1.04], [147, 1, 7, 2.41], [1504, 2, 8, 0.89], [21798, 1, 7, 0.79], [7036, 1, 7, 1.36], [345, 3, 8, 0.83], [94, 4, 7, 2.84], [22179, 1, 7, 1.1], [1654, 2, 7, 0.79], [3478, 2, 7, 2.15], [3891, 1, 7, 2.35], [1656, 2, 7, 0.79], [167, 3, 7, 1.44], [11404, 2, 8, 1.11], [308, 1, 7, 2.86], [79, 1, 7, 0.7], [96, 11, 24, 0.86], [439, 1, 7, 4.35], [23, 1, 7, 1.97], [411, 2, 7, 1.25], [8853, 2, 11, 2.61], [9760, 29, 7, 0.95], [168, 3, 8, 1.23], [21793, 1, 7, 1.04], [1490, 1, 7, 0.84], [9827, 3, 7, 0.84], [8677, 3, 8, 2.44], [432, 3, 8, 1.1], [5812, 3, 8, 0.86], [10574, 3, 9, 2.6], [335, 3, 16, 1.24], [1243, 2, 7, 0.96], [6158, 2, 8, 1.37], [229, 1, 7, 2.31], [1124, 2, 8, 0.73], [346, 1, 7, 1.59], [412, 1, 7, 1.78], [214, 3, 15, 0.97], [25, 1, 7, 2.91], [9372, 1, 7, 3.14], [1767, 25, 7, 1.02], [346, 3, 8, 1.45], [8651, 2, 7, 1.57], [45, 2, 7, 3.2], [35, 1, 7, 1.23], [3495, 3, 21, 1.65], [998, 2, 7, 1.33], [11681, 2, 11, 3.77], [11490, 1, 7, 0.82], [2049, 1, 7, 0.98], [95, 3, 17, 1.0], [148, 1, 7, 2.46], [5946, 1, 7, 2.14], [11116, 1, 7, 0.7], [2775, 2, 7, 0.93], [950, 1, 7, 2.11], [8898, 3, 7, 2.5], [1766, 25, 7, 1.74], [201, 3, 8, 0.83], [9691, 1, 7, 0.74], [3670, 2, 8, 2.71], [1070, 7, 15, 0.82], [1163, 3, 8, 0.66], [11954, 1, 7, 0.79], [97, 11, 22, 1.16], [3980, 4, 7, 2.7], [11739, 2, 7, 2.62], [8676, 2, 10, 1.02], [11489, 1, 7, 2.15], [8945, 3, 8, 0.93], [972, 3, 8, 0.67], [996, 2, 7, 1.36], [20498, 3, 8, 0.94], [20498, 1, 7, 1.01], [974, 3, 7, 0.98], [1519, 3, 17, 0.67], [9784, 1, 7, 0.87], [823, 1, 7, 2.54], [93, 11, 17, 1.51], [11454, 2, 11, 3.9], [149, 2, 7, 2.49], [1414, 15, 7, 0.69], [11811, 1, 7, 2.23], [5584, 3, 7, 3.19], [8104, 1, 7, 0.73], [2497, 2, 7, 0.82], [24, 1, 7, 2.91], [506, 1, 7, 4.55], [5811, 3, 8, 1.0], [9828, 3, 7, 0.9], [1490, 1, 66, 1.98], [9827, 3, 111, 1.98], [8677, 3, 379, 3.57], [432, 3, 389, 2.25], [5812, 3, 766, 2.01], [10574, 3, 635, 3.74], [335, 3, 1716, 2.39], [1243, 2, 124, 2.1], [6158, 2, 338, 2.51], [229, 1, 105, 3.46], [1124, 2, 240, 1.87], [346, 1, 202, 2.74], [412, 1, 106, 2.92], [214, 3, 863, 2.1], [25, 1, 94, 3.93], [9372, 1, 299, 4.29], [1767, 25, 220, 2.16], [346, 3, 807, 2.59], [8651, 2, 289, 2.71], [45, 2, 142, 4.35], [35, 1, 141, 2.37], [3495, 3, 1234, 2.81], [998, 2, 309, 2.48], [11681, 2, 342, 4.91], [11490, 1, 139, 1.96], [2049, 1, 28, 2.12], [95, 3, 1436, 2.15], [148, 1, 113, 3.6], [5946, 1, 160, 3.28], [11116, 1, 102, 1.84], [2775, 2, 199, 2.07], [950, 1, 75, 3.26], [8898, 3, 376, 3.64], [1766, 25, 237, 2.88], [201, 3, 390, 1.96], [9691, 1, 96, 1.88], [3670, 2, 312, 3.85], [1070, 7, 762, 1.96], [1163, 3, 439, 1.8], [11954, 1, 257, 1.93], [97, 11, 664, 2.29], [3980, 4, 612, 3.85], [11739, 2, 48, 3.65], [8676, 2, 366, 2.16], [11489, 1, 69, 3.06], [8945, 3, 790, 2.07], [972, 3, 762, 1.82], [996, 2, 309, 2.5], [20498, 3, 766, 2.09], [20498, 1, 128, 2.15], [974, 3, 190, 2.12], [1519, 3, 2262, 1.82], [9784, 1, 93, 2.01], [823, 1, 51, 3.68], [93, 11, 614, 2.65], [11454, 2, 421, 5.04], [149, 2, 113, 3.63], [1414, 15, 125, 1.83], [11811, 1, 570, 3.37], [5584, 3, 314, 4.34], [8104, 1, 263, 1.88], [2497, 2, 261, 1.96], [24, 1, 141, 4.05], [506, 1, 113, 5.69], [5811, 3, 762, 2.14], [9828, 3, 111, 2.04]]</t>
-  </si>
-  <si>
-    <t>[[305, 2, 7, 2.4], [6935, 2, 16, 2.74], [326, 2, 8, 0.69], [205, 2, 7, 1.43], [141, 2, 7, 1.16], [362, 2, 7, 1.45], [151, 1, 7, 1.42], [146, 2, 7, 0.73], [2328, 2, 8, 0.86], [145, 2, 7, 1.97], [143, 2, 7, 0.86], [8648, 2, 8, 1.53], [8915, 2, 8, 0.62], [6936, 2, 10, 2.62], [206, 2, 7, 1.25], [990, 2, 7, 1.03], [8650, 2, 7, 2.18], [5151, 2, 7, 3.83], [1007, 2, 10, 1.01], [20252, 2, 7, 0.95], [2778, 2, 8, 1.02], [248, 1, 7, 1.31], [76, 2, 7, 2.35], [88, 10, 15, 2.25], [8649, 2, 7, 1.39], [2050, 3, 8, 0.66], [75, 2, 7, 0.7], [10149, 3, 24, 3.53], [1654, 2, 7, 0.79], [412, 1, 7, 1.85], [8677, 3, 8, 3.08], [2057, 3, 8, 2.02], [10825, 21, 14, 0.91], [1656, 2, 7, 0.79], [413, 1, 7, 0.7], [410, 1, 7, 1.9], [411, 2, 7, 1.25], [307, 2, 7, 1.07], [7084, 3, 7, 0.95], [1429, 2, 7, 1.01], [308, 1, 7, 2.86], [1492, 1, 7, 0.93], [3893, 1, 7, 1.28], [1006, 2, 7, 1.18], [5081, 2, 7, 0.68], [3495, 3, 21, 1.65], [6158, 2, 9, 0.78], [10574, 3, 9, 0.75], [167, 3, 8, 1.31], [74, 1, 7, 1.23], [1124, 2, 11, 1.08], [3889, 1, 7, 1.56], [45, 2, 7, 3.2], [3891, 1, 7, 1.28], [1504, 2, 8, 0.89], [7036, 1, 7, 1.08], [12870, 1, 7, 1.05], [11681, 2, 8, 4.49], [335, 3, 18, 1.24], [168, 3, 8, 1.23], [9827, 3, 7, 0.84], [94, 4, 7, 3.19], [147, 1, 7, 2.34], [8853, 2, 11, 2.8], [415, 1, 7, 0.88], [439, 1, 7, 4.79], [6097, 80, 7, 3.11], [22179, 1, 7, 0.87], [418, 2, 7, 1.12], [8651, 2, 7, 1.41], [346, 1, 7, 1.59], [11737, 2, 7, 1.22], [23, 1, 7, 2.0], [416, 1, 7, 1.1], [20256, 2, 7, 0.71], [432, 3, 8, 1.1], [6097, 29, 7, 3.13], [96, 11, 23, 0.89], [346, 3, 8, 1.45], [148, 1, 7, 2.39], [1490, 1, 7, 0.68], [6098, 80, 7, 2.06], [95, 3, 22, 1.0], [10631, 2, 7, 0.9], [14017, 3, 7, 0.74], [8898, 3, 8, 2.59], [414, 1, 7, 1.1], [950, 1, 7, 1.37], [1070, 7, 13, 0.8], [6098, 29, 7, 2.06], [22316, 3, 8, 0.85], [25, 1, 7, 1.86], [11116, 1, 7, 0.7], [11490, 1, 7, 0.82], [1413, 15, 7, 2.76], [11489, 1, 7, 1.43], [8945, 3, 8, 1.33], [3980, 4, 8, 2.7], [9760, 29, 7, 0.86], [5086, 1, 7, 2.33], [9829, 3, 7, 0.71], [20255, 2, 7, 0.81], [9372, 1, 7, 3.14], [229, 1, 7, 3.16], [9784, 1, 7, 0.91], [336, 15, 7, 1.62], [972, 3, 8, 0.67], [11739, 2, 7, 3.27], [5811, 3, 8, 2.36], [974, 3, 7, 0.98], [149, 2, 7, 2.42], [8557, 3, 7, 1.28], [22317, 3, 8, 0.89], [5813, 3, 8, 3.52], [2423, 80, 7, 2.75], [7567, 3, 7, 2.24], [9082, 3, 22, 2.75], [3049, 3, 7, 3.15], [2497, 2, 7, 0.82], [2424, 80, 7, 1.93], [8943, 3, 7, 3.03], [1414, 15, 7, 2.76], [2775, 2, 7, 1.04], [4076, 3, 7, 2.01], [952, 4, 7, 4.03], [470, 1, 7, 0.86], [11454, 2, 9, 3.19], [13023, 3, 8, 2.44], [11767, 1, 7, 0.89], [2854, 21, 8, 0.76], [2104, 3, 12, 0.91], [6497, 1, 7, 2.39], [5584, 3, 7, 3.06], [22179, 1, 192, 1.87], [418, 2, 163, 2.12], [8651, 2, 263, 2.4], [346, 1, 183, 2.59], [11737, 2, 66, 2.22], [23, 1, 128, 2.99], [416, 1, 100, 2.1], [20256, 2, 108, 1.7], [432, 3, 352, 2.09], [6097, 29, 40, 4.13], [96, 11, 966, 1.89], [346, 3, 731, 2.44], [148, 1, 103, 3.38], [1490, 1, 60, 1.68], [6098, 80, 87, 3.05], [95, 3, 1301, 2.0], [10631, 2, 249, 1.9], [14017, 3, 229, 1.74], [8898, 3, 337, 3.59], [414, 1, 100, 2.1], [950, 1, 68, 2.36], [1070, 7, 690, 1.8], [6098, 29, 44, 3.05], [22316, 3, 365, 1.84], [25, 1, 127, 2.85], [11116, 1, 93, 1.69], [11490, 1, 126, 1.82], [1413, 15, 90, 3.69], [11489, 1, 126, 2.43], [8945, 3, 712, 2.32], [3980, 4, 555, 3.7], [9760, 29, 84, 1.86], [5086, 1, 211, 3.32], [9829, 3, 80, 1.7], [20255, 2, 108, 1.8], [9372, 1, 271, 4.14], [229, 1, 95, 4.15], [9784, 1, 84, 1.9], [336, 15, 133, 2.62], [972, 3, 690, 1.67], [11739, 2, 26, 3.89], [5811, 3, 677, 3.36], [974, 3, 172, 1.97], [149, 2, 103, 3.41], [8557, 3, 234, 2.27], [22317, 3, 364, 1.88], [5813, 3, 677, 4.52], [2423, 80, 213, 3.74], [7567, 3, 81, 3.24], [9082, 3, 2819, 3.75], [3049, 3, 160, 4.15], [2497, 2, 237, 1.81], [2424, 80, 198, 2.92], [8943, 3, 456, 4.03], [1414, 15, 112, 3.76], [2775, 2, 181, 2.03], [4076, 3, 235, 3.01], [952, 4, 83, 5.02], [470, 1, 39, 1.85], [11454, 2, 381, 4.18], [13023, 3, 677, 3.44], [11767, 1, 188, 1.88], [2854, 21, 1219, 1.77], [2104, 3, 409, 1.9], [6497, 1, 43, 3.38], [5584, 3, 285, 4.05]]</t>
-  </si>
-  <si>
-    <t>[[11685, 2, 8, 3.15], [130, 1, 7, 2.63], [6935, 2, 10, 3.91], [8648, 2, 7, 1.66], [143, 2, 7, 2.48], [205, 2, 7, 0.96], [2328, 2, 7, 0.98], [2778, 2, 8, 1.28], [6936, 2, 9, 3.93], [305, 2, 7, 3.34], [141, 2, 7, 1.55], [8650, 2, 7, 1.1], [206, 2, 7, 0.73], [151, 1, 7, 1.42], [11681, 2, 9, 2.95], [146, 2, 7, 2.94], [88, 10, 15, 1.8], [7036, 1, 7, 2.12], [8853, 2, 8, 3.93], [5491, 2, 7, 0.91], [8649, 2, 7, 1.81], [362, 2, 7, 1.38], [248, 1, 7, 1.25], [22179, 1, 7, 1.66], [1006, 2, 7, 1.09], [12870, 1, 7, 0.94], [3893, 1, 7, 2.14], [990, 2, 7, 0.84], [11737, 2, 7, 1.04], [3840, 1, 7, 0.72], [2055, 3, 7, 2.27], [616, 2, 7, 0.88], [75, 2, 7, 2.15], [10993, 2, 7, 0.88], [1504, 2, 8, 0.95], [2050, 3, 8, 1.68], [3889, 1, 7, 1.28], [10574, 3, 8, 2.4], [997, 2, 7, 3.35], [2057, 3, 8, 1.68], [3, 2, 7, 0.72], [9760, 29, 7, 0.94], [94, 4, 7, 3.19], [7084, 3, 7, 1.12], [9372, 1, 7, 3.5], [346, 3, 7, 1.34], [624, 2, 7, 0.67], [996, 2, 7, 3.6], [76, 2, 7, 2.11], [2775, 2, 7, 0.93], [2054, 3, 8, 1.84], [3891, 1, 7, 2.14], [8939, 2, 7, 0.74], [998, 2, 7, 3.17], [3982, 3, 17, 2.34], [1126, 2, 7, 0.71], [21798, 1, 7, 1.82], [84, 2, 7, 0.81], [11739, 2, 7, 1.04], [214, 3, 15, 0.86], [8672, 2, 8, 0.9], [972, 3, 8, 0.82], [6158, 2, 8, 2.7], [21793, 1, 7, 3.63], [950, 1, 7, 1.99], [96, 11, 21, 2.51], [995, 2, 7, 2.38], [2776, 2, 7, 1.79], [10388, 2, 7, 4.07], [411, 2, 7, 0.94], [98, 11, 17, 3.94], [346, 1, 7, 1.33], [410, 1, 7, 1.9], [418, 2, 7, 1.42], [413, 1, 7, 0.8], [13928, 1, 7, 1.81], [3980, 4, 8, 2.79], [22316, 3, 7, 0.97], [9784, 1, 7, 0.86], [1492, 1, 7, 0.86], [10386, 2, 7, 4.85], [11490, 1, 7, 1.07], [22247, 2, 7, 1.75], [336, 15, 7, 1.06], [412, 1, 7, 1.37], [11770, 1, 7, 1.05], [11504, 2, 7, 1.21], [1413, 15, 7, 0.88], [13893, 2, 7, 1.47], [11808, 1, 7, 1.81], [308, 1, 8, 2.03], [3981, 3, 21, 2.14], [10407, 10, 10, 1.96], [414, 1, 7, 0.87], [22317, 3, 7, 0.97], [7567, 3, 7, 2.22], [10410, 10, 10, 1.96], [20256, 2, 7, 0.79], [229, 1, 7, 3.16], [972, 1, 7, 0.91], [11953, 1, 7, 0.97], [10631, 2, 7, 1.14], [6497, 1, 7, 0.98], [432, 3, 7, 0.89], [8677, 3, 7, 1.01], [2331, 1, 7, 1.32], [5490, 2, 7, 0.94], [335, 3, 15, 1.29], [415, 1, 7, 0.77], [74, 1, 7, 1.16], [9691, 1, 7, 0.93], [11767, 1, 7, 2.54], [9082, 3, 28, 2.42], [10387, 2, 7, 4.85], [12271, 2, 7, 1.22], [2497, 2, 7, 1.04], [439, 1, 7, 2.28], [8943, 3, 7, 2.4], [12721, 2, 7, 1.4], [8897, 3, 7, 3.55], [9, 1, 7, 1.7], [10780, 10, 7, 4.4], [1163, 3, 7, 1.18], [2104, 3, 10, 1.02], [10149, 3, 21, 1.92], [11510, 3, 8, 3.02], [10936, 2, 7, 1.97], [1523, 1, 7, 4.12], [9971, 2, 7, 1.33], [11489, 1, 7, 0.84], [8635, 3, 7, 1.47], [416, 1, 7, 0.97], [13281, 1, 7, 5.59], [411, 2, 131, 2.16], [98, 11, 996, 5.15], [346, 1, 191, 2.55], [410, 1, 36, 2.62], [418, 2, 170, 2.64], [413, 1, 105, 2.02], [13928, 1, 57, 3.03], [3980, 4, 580, 4.0], [22316, 3, 380, 2.18], [9784, 1, 88, 2.08], [1492, 1, 45, 2.08], [10386, 2, 261, 6.0], [11490, 1, 131, 2.29], [22247, 2, 345, 2.97], [336, 15, 139, 2.28], [412, 1, 101, 2.59], [11770, 1, 263, 2.27], [11504, 2, 170, 2.43], [1413, 15, 119, 2.1], [13893, 2, 334, 2.69], [11808, 1, 552, 3.03], [308, 1, 199, 3.25], [3981, 3, 1937, 3.34], [10407, 10, 1443, 3.18], [414, 1, 105, 2.09], [22317, 3, 380, 2.18], [7567, 3, 85, 3.44], [10410, 10, 1443, 3.18], [20256, 2, 113, 2.01], [229, 1, 99, 4.38], [972, 1, 121, 2.13], [11953, 1, 211, 2.16], [10631, 2, 259, 2.36], [6497, 1, 46, 2.2], [432, 3, 368, 2.1], [8677, 3, 357, 2.23], [2331, 1, 144, 2.54], [5490, 2, 131, 2.16], [335, 3, 1625, 2.53], [415, 1, 105, 1.99], [74, 1, 259, 2.38], [9691, 1, 91, 2.15], [11767, 1, 195, 3.76], [9082, 3, 2946, 3.67], [10387, 2, 261, 6.0], [12271, 2, 77, 2.44], [2497, 2, 248, 2.26], [439, 1, 104, 3.5], [8943, 3, 476, 3.62], [12721, 2, 345, 2.62], [8897, 3, 353, 4.77], [9, 1, 24, 2.77], [10780, 10, 468, 5.62], [1163, 3, 119, 1.88], [2104, 3, 427, 2.24], [10149, 3, 1080, 3.15], [11510, 3, 711, 4.24], [10936, 2, 163, 3.19], [1523, 1, 56, 5.34], [9971, 2, 332, 2.55], [11489, 1, 131, 2.06], [8635, 3, 178, 2.42], [416, 1, 105, 2.19], [13281, 1, 380, 6.0]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 9, 0.92], [2778, 2, 11, 1.2], [205, 2, 7, 0.91], [206, 2, 7, 1.07], [1504, 2, 9, 1.03], [2049, 3, 14, 1.0], [3, 2, 8, 0.79], [6936, 2, 8, 3.03], [8650, 2, 8, 2.23], [11838, 2, 8, 0.83], [151, 1, 7, 1.64], [8648, 2, 7, 1.84], [11739, 2, 7, 3.27], [616, 2, 7, 0.86], [8853, 2, 8, 2.55], [11837, 2, 7, 0.87], [2776, 2, 7, 1.29], [146, 2, 7, 0.78], [2327, 2, 8, 1.11], [143, 2, 7, 2.48], [2423, 29, 7, 1.8], [2423, 80, 8, 1.78], [411, 2, 7, 1.07], [6497, 1, 7, 2.65], [583, 2, 7, 0.88], [145, 2, 7, 0.8], [2805, 137, 8, 1.08], [326, 2, 8, 0.75], [6097, 80, 7, 2.78], [9784, 1, 7, 0.95], [2775, 2, 7, 0.98], [10149, 3, 21, 0.98], [10574, 3, 10, 2.49], [11836, 2, 7, 1.15], [6097, 29, 7, 2.8], [2057, 3, 8, 0.61], [11234, 2, 9, 1.25], [20252, 2, 7, 0.98], [1413, 15, 7, 0.8], [76, 2, 7, 2.28], [2422, 80, 7, 2.98], [11504, 2, 7, 1.0], [6098, 80, 7, 1.95], [1492, 1, 7, 1.61], [6494, 1, 7, 2.88], [6496, 1, 7, 1.67], [1886, 2, 7, 0.89], [12269, 2, 7, 3.21], [247, 1, 7, 0.82], [336, 15, 7, 1.28], [2422, 29, 7, 2.95], [1243, 2, 7, 0.82], [11491, 2, 7, 1.43], [3429, 15, 7, 0.69], [9786, 1, 7, 0.95], [22316, 3, 8, 0.75], [21798, 1, 7, 0.84], [1490, 1, 7, 0.94], [6098, 29, 7, 1.96], [13928, 1, 7, 1.39], [201, 3, 8, 3.31], [944, 15, 7, 0.78], [11489, 1, 7, 0.95], [3670, 2, 9, 2.89], [2859, 15, 7, 0.76], [21793, 1, 7, 1.27], [9342, 2, 8, 0.87], [214, 3, 15, 0.9], [2049, 1, 7, 0.98], [7084, 3, 7, 1.81], [8938, 2, 7, 2.94], [8943, 3, 7, 2.45], [9785, 1, 7, 0.95], [8659, 1, 7, 0.91], [8944, 3, 7, 1.62], [11770, 1, 7, 1.74], [3478, 2, 7, 2.04], [229, 1, 7, 2.93], [4253, 1, 7, 0.9], [12526, 2, 7, 2.95], [11671, 1, 8, 0.74], [4232, 80, 7, 1.57], [1413, 16, 7, 0.8], [8599, 1, 7, 0.91], [88, 10, 13, 1.87], [11885, 2, 8, 0.89], [107, 7, 8, 0.63], [436, 2, 7, 0.71], [10398, 2, 7, 0.97], [74, 1, 7, 3.46], [11811, 1, 7, 2.23], [11887, 2, 8, 0.84], [1429, 2, 7, 0.79], [11160, 1, 7, 1.13], [1699, 3, 7, 0.88], [1050, 2, 7, 1.65], [11677, 1, 8, 2.01], [590, 15, 7, 0.94], [1548, 1, 7, 0.89], [140, 2, 7, 0.76], [11490, 1, 7, 0.94], [9358, 1, 7, 2.83], [9760, 29, 7, 0.86], [3673, 2, 7, 3.34], [11767, 1, 7, 0.77], [2421, 80, 8, 0.66], [94, 4, 7, 2.29], [11769, 1, 7, 0.79], [22573, 2, 7, 1.9], [107, 2, 7, 0.68], [1006, 2, 7, 1.33], [11844, 2, 8, 0.89], [11954, 1, 7, 2.87], [3495, 3, 21, 1.12], [11771, 1, 7, 2.57], [7036, 1, 7, 3.51], [9082, 3, 28, 3.0], [12764, 2, 10, 0.97], [13928, 2, 7, 1.39], [2104, 3, 10, 0.98], [11180, 1, 7, 0.91], [1668, 1, 7, 0.89], [9491, 21, 16, 0.87], [11674, 1, 7, 2.03], [8286, 2, 8, 0.66], [5940, 3, 7, 0.81], [2108, 3, 10, 1.57], [2703, 3, 7, 0.93], [5939, 3, 7, 0.81], [11808, 1, 7, 0.69], [10407, 10, 12, 3.04], [9690, 1, 7, 0.94], [8274, 3, 7, 1.56], [2049, 1, 11, 2.11], [7084, 3, 175, 3.3], [8943, 3, 538, 3.93], [9785, 1, 98, 2.43], [8659, 1, 164, 2.4], [8944, 3, 315, 3.1], [11770, 1, 291, 3.22], [3478, 2, 102, 3.52], [229, 1, 111, 4.42], [4253, 1, 231, 2.38], [12526, 2, 371, 4.43], [11671, 1, 421, 2.23], [4232, 80, 213, 3.06], [1413, 16, 67, 2.28], [8599, 1, 200, 2.39], [88, 10, 766, 3.36], [11885, 2, 261, 2.38], [107, 7, 329, 2.12], [436, 2, 146, 2.2], [10398, 2, 200, 2.45], [74, 1, 273, 4.94], [11811, 1, 605, 3.71], [11887, 2, 261, 2.32], [1429, 2, 208, 2.27], [11160, 1, 690, 2.61], [1699, 3, 299, 2.37], [11677, 1, 603, 3.48], [590, 15, 137, 2.43], [1548, 1, 141, 2.37], [140, 2, 126, 2.24], [11490, 1, 147, 2.42], [9358, 1, 78, 4.31], [9760, 29, 98, 2.35], [3673, 2, 332, 4.82], [11767, 1, 222, 2.25], [2421, 80, 254, 2.11], [94, 4, 163, 3.77], [11769, 1, 222, 2.27], [22573, 2, 95, 3.38], [107, 2, 66, 2.16], [1006, 2, 311, 2.81], [11844, 2, 371, 2.37], [11954, 1, 264, 4.35], [3495, 3, 1311, 2.61], [11771, 1, 290, 4.05], [7036, 1, 173, 4.99], [9082, 3, 3305, 4.5], [12764, 2, 985, 2.46], [13928, 2, 32, 2.87], [2104, 3, 479, 2.47], [11180, 1, 119, 2.39], [1668, 1, 141, 2.38], [9491, 21, 2884, 2.33], [11674, 1, 273, 3.52], [8286, 2, 655, 2.15], [5940, 3, 363, 2.3], [2108, 3, 368, 3.05], [2703, 3, 446, 2.42], [5939, 3, 363, 2.3], [11808, 1, 650, 2.16], [10407, 10, 1586, 4.52], [9690, 1, 102, 2.42], [8274, 3, 116, 2.4]]</t>
-  </si>
-  <si>
-    <t>[[305, 2, 7, 1.89], [6935, 2, 11, 6.0], [2778, 2, 7, 0.99], [2775, 2, 7, 0.99], [8648, 2, 7, 1.84], [6936, 2, 8, 4.6], [8650, 2, 7, 1.1], [205, 2, 7, 0.91], [145, 2, 7, 0.9], [3840, 1, 7, 0.85], [7036, 1, 7, 2.24], [2776, 2, 7, 0.99], [2049, 3, 10, 1.0], [615, 2, 7, 0.74], [88, 10, 16, 2.06], [616, 2, 7, 0.74], [141, 2, 7, 1.86], [7004, 1, 7, 0.76], [151, 1, 7, 1.42], [206, 2, 7, 1.07], [11681, 2, 11, 3.89], [8853, 2, 7, 3.49], [1007, 2, 8, 0.69], [9372, 1, 7, 3.05], [990, 2, 7, 0.89], [362, 2, 7, 1.42], [3893, 1, 7, 2.26], [12870, 1, 7, 1.17], [248, 1, 7, 1.49], [8649, 2, 7, 0.92], [8672, 2, 8, 0.78], [417, 2, 7, 1.71], [3889, 1, 7, 2.26], [2497, 2, 7, 1.01], [10993, 2, 7, 1.64], [142, 2, 7, 0.84], [10574, 3, 9, 2.69], [10149, 3, 17, 1.14], [7084, 3, 7, 0.85], [523, 2, 7, 0.91], [3891, 1, 7, 2.26], [997, 2, 7, 2.89], [1006, 2, 7, 1.07], [21793, 1, 7, 1.58], [11234, 2, 7, 2.11], [22247, 2, 7, 1.14], [1622, 1, 7, 0.81], [229, 1, 7, 3.16], [346, 3, 7, 0.95], [998, 2, 7, 1.2], [12721, 2, 7, 1.1], [94, 4, 7, 2.79], [8104, 1, 7, 0.97], [9491, 21, 17, 0.8], [2424, 80, 8, 1.91], [13280, 1, 8, 2.41], [972, 3, 8, 0.9], [147, 1, 7, 2.29], [13928, 1, 7, 1.52], [1656, 2, 7, 0.8], [413, 1, 7, 1.03], [11952, 1, 7, 1.34], [7573, 1, 17, 1.36], [76, 2, 7, 1.97], [11769, 1, 7, 0.88], [2774, 2, 7, 0.92], [6158, 2, 8, 3.14], [346, 1, 7, 0.97], [5076, 1, 7, 0.8], [11770, 1, 7, 1.23], [439, 1, 7, 4.79], [950, 1, 7, 1.37], [412, 1, 7, 1.23], [12212, 29, 7, 1.02], [8676, 2, 7, 0.94], [995, 2, 7, 2.25], [418, 2, 7, 2.55], [3495, 3, 16, 0.99], [11490, 1, 7, 0.84], [10407, 10, 12, 3.12], [9, 1, 7, 1.87], [11953, 1, 7, 0.81], [4032, 29, 7, 0.9], [8898, 3, 7, 2.78], [2424, 29, 7, 2.11], [214, 3, 15, 0.72], [957, 2, 7, 2.99], [148, 1, 7, 2.47], [96, 11, 21, 3.06], [9784, 1, 7, 0.99], [415, 1, 7, 0.93], [9690, 1, 7, 0.71], [411, 2, 7, 1.07], [9691, 1, 7, 0.76], [11739, 2, 7, 2.99], [3048, 3, 7, 3.61], [3429, 15, 7, 0.96], [11767, 1, 7, 0.86], [10408, 10, 10, 3.19], [1654, 2, 7, 0.8], [5584, 3, 7, 3.36], [2331, 1, 7, 1.02], [10410, 10, 15, 3.0], [5164, 1, 7, 1.84], [11164, 1, 7, 3.97], [11504, 2, 7, 0.93], [1492, 1, 7, 1.24], [13928, 2, 7, 1.54], [13893, 2, 7, 1.67], [410, 1, 7, 1.9], [11813, 1, 7, 0.71], [6097, 80, 7, 2.47], [12764, 2, 8, 0.92], [1523, 1, 7, 1.85], [71, 15, 7, 1.13], [972, 1, 7, 0.91], [4253, 1, 7, 0.9], [11235, 2, 7, 1.25], [10411, 10, 10, 3.14], [21269, 3, 7, 1.7], [7567, 3, 7, 2.13], [382, 1, 7, 2.87], [12526, 2, 7, 2.95], [11404, 2, 7, 1.53], [1080, 3, 7, 3.36], [19931, 1, 7, 0.83], [2436, 4, 7, 2.54], [2423, 80, 7, 1.19], [3430, 15, 7, 0.99], [21059, 1, 7, 2.39], [3980, 4, 8, 2.43], [1548, 1, 7, 0.87], [84, 2, 7, 0.73], [346, 1, 208, 2.31], [5076, 1, 175, 2.14], [11770, 1, 285, 2.58], [439, 1, 111, 6.0], [950, 1, 77, 2.71], [412, 1, 109, 2.57], [12212, 29, 157, 2.37], [8676, 2, 377, 2.29], [995, 2, 200, 3.48], [418, 2, 185, 3.89], [3495, 3, 1269, 2.35], [11490, 1, 142, 2.19], [10407, 10, 1536, 4.48], [9, 1, 11, 2.64], [11953, 1, 266, 2.16], [4032, 29, 127, 2.25], [8898, 3, 387, 4.13], [2424, 29, 45, 3.46], [214, 3, 893, 2.07], [957, 2, 133, 4.34], [148, 1, 116, 3.82], [9784, 1, 95, 2.34], [415, 1, 114, 2.28], [9690, 1, 25, 1.47], [411, 2, 142, 2.42], [9691, 1, 37, 1.78], [11739, 2, 19, 3.76], [3048, 3, 370, 4.96], [3429, 15, 35, 2.12], [11767, 1, 214, 2.2], [10408, 10, 1004, 4.52], [1654, 2, 124, 2.15], [5584, 3, 321, 4.71], [2331, 1, 156, 2.36], [10410, 10, 1536, 4.36], [5164, 1, 62, 3.18], [11164, 1, 550, 5.32], [11504, 2, 185, 2.28], [1492, 1, 49, 2.58], [13928, 2, 31, 2.88], [13893, 2, 366, 3.02], [11813, 1, 417, 2.05], [6097, 80, 91, 3.81], [12764, 2, 954, 2.26], [1523, 1, 62, 3.2], [71, 15, 306, 2.48], [972, 1, 131, 2.25], [4253, 1, 224, 2.24], [11235, 2, 284, 2.6], [10411, 10, 1004, 4.47], [21269, 3, 384, 3.05], [7567, 3, 92, 3.47], [382, 1, 202, 4.22], [12526, 2, 360, 4.29], [11404, 2, 52, 2.56], [1080, 3, 153, 4.71], [19931, 1, 550, 2.18], [2436, 4, 149, 3.89], [2423, 80, 245, 2.54], [3430, 15, 90, 2.34], [21059, 1, 427, 3.73], [3980, 4, 629, 3.77], [1548, 1, 136, 2.22], [84, 2, 88, 2.07]]</t>
-  </si>
-  <si>
-    <t>501QD</t>
-  </si>
-  <si>
-    <t>401QD</t>
-  </si>
-  <si>
-    <t>236QD</t>
-  </si>
-  <si>
-    <t>337QD</t>
-  </si>
-  <si>
-    <t>797QD</t>
-  </si>
-  <si>
-    <t>339QD</t>
-  </si>
-  <si>
-    <t>703QD</t>
-  </si>
-  <si>
-    <t>1QD</t>
-  </si>
-  <si>
-    <t>962QD</t>
-  </si>
-  <si>
-    <t>170QD</t>
-  </si>
-  <si>
-    <t>632QD</t>
-  </si>
-  <si>
-    <t>8QD</t>
+    <t>ElMahalaQD</t>
+  </si>
+  <si>
+    <t>07/12/2025 16:43</t>
+  </si>
+  <si>
+    <t>09/12/2025 23:59</t>
+  </si>
+  <si>
+    <t>[[88, 10, 8, 0.93], [8915, 2, 5, 0.58], [2327, 2, 4, 0.52], [589, 2, 5, 0.57], [2778, 2, 4, 0.51], [6935, 2, 5, 1.77], [2328, 2, 4, 0.58], [130, 1, 4, 0.48], [305, 2, 4, 0.45], [615, 2, 4, 0.57], [616, 2, 4, 0.36], [326, 2, 4, 1.15], [6936, 2, 4, 1.74], [8650, 2, 4, 0.39], [8648, 2, 4, 1.05], [1446, 2, 4, 0.39], [7004, 1, 4, 0.52], [10, 2, 4, 0.37], [143, 2, 4, 0.58], [5491, 2, 4, 0.58], [7036, 1, 4, 0.44], [205, 2, 4, 0.43], [2775, 2, 4, 0.51], [144, 2, 4, 0.53], [3840, 1, 4, 0.79], [94, 4, 4, 1.41], [1124, 2, 4, 0.48], [434, 2, 4, 0.39], [3893, 1, 4, 0.53], [146, 2, 4, 0.57], [990, 2, 4, 0.36], [1504, 2, 4, 0.93], [12224, 1, 4, 0.35], [8853, 2, 4, 1.79], [1429, 2, 4, 0.39], [362, 2, 4, 0.5], [2776, 2, 4, 0.64], [3891, 1, 4, 0.53], [75, 2, 4, 0.39], [141, 2, 4, 0.39], [11404, 2, 4, 0.64], [11681, 2, 5, 0.83], [2497, 2, 4, 0.45], [5208, 3, 4, 0.48], [378, 2, 4, 1.16], [10574, 3, 5, 1.36], [11234, 2, 4, 1.25], [12870, 1, 4, 0.72], [13028, 3, 4, 2.04], [7005, 1, 4, 0.44], [10149, 3, 13, 0.4], [21793, 1, 4, 0.5], [3980, 4, 4, 1.23], [145, 2, 4, 0.51], [11811, 1, 4, 0.44], [5165, 1, 4, 1.06], [20927, 1, 4, 0.45], [998, 2, 4, 1.0], [8672, 2, 4, 0.98], [417, 2, 4, 0.42], [9760, 29, 4, 0.37], [1886, 2, 4, 0.45], [2436, 4, 4, 0.55], [346, 3, 4, 0.39], [1006, 2, 4, 0.54], [3, 2, 4, 0.46], [972, 3, 5, 0.51], [2424, 80, 4, 0.49], [3495, 3, 10, 0.56], [6158, 2, 4, 0.48], [9372, 1, 4, 1.47], [5076, 1, 4, 0.43], [11770, 1, 4, 0.46], [5165, 2, 5, 1.02], [126, 2, 4, 1.15], [74, 1, 4, 1.47], [140, 2, 4, 1.15], [8939, 2, 4, 0.5], [11769, 1, 4, 0.42], [3982, 3, 10, 0.46], [1492, 1, 4, 0.52], [996, 2, 4, 0.66], [2774, 2, 4, 0.78], [2912, 2, 7, 0.36], [20256, 2, 4, 0.52], [12721, 2, 4, 0.49], [9491, 21, 10, 0.44], [6497, 1, 4, 1.09], [3981, 3, 11, 0.56], [2423, 80, 4, 0.75], [5434, 1, 4, 0.5], [12229, 2, 4, 0.47], [11685, 2, 5, 0.83], [5584, 3, 4, 1.25], [11767, 1, 4, 0.49], [10407, 10, 6, 1.56], [10388, 2, 4, 0.78], [8677, 3, 4, 0.42], [346, 1, 4, 0.37], [11179, 1, 4, 0.71], [823, 1, 4, 0.94], [2438, 2, 5, 0.5], [2424, 29, 4, 0.55], [5209, 3, 4, 0.48], [2104, 3, 9, 0.35], [8898, 3, 4, 1.44], [2805, 137, 4, 0.6], [12526, 2, 4, 0.94], [3900, 3, 4, 1.26], [11812, 1, 4, 0.47], [4253, 1, 4, 0.54], [11490, 1, 4, 0.43], [3975, 4, 4, 1.2], [96, 11, 13, 0.38], [8676, 2, 4, 0.55], [412, 1, 4, 0.43], [1622, 1, 4, 0.45], [22247, 2, 4, 0.87], [972, 1, 4, 0.52], [1274, 1, 4, 0.48], [13893, 2, 4, 0.45], [12764, 2, 5, 0.38], [9784, 1, 4, 0.47], [11813, 1, 4, 0.4], [10386, 2, 4, 0.37], [11814, 1, 4, 0.4], [8283, 2, 5, 0.55], [8635, 3, 4, 0.45], [6097, 80, 4, 1.35], [10410, 10, 9, 1.6], [1243, 2, 4, 0.5], [6489, 11, 13, 1.1], [7567, 3, 4, 1.16], [88, 10, 368, 3.44], [8915, 2, 124, 2.46], [2327, 2, 98, 2.43], [589, 2, 99, 2.47], [2778, 2, 102, 2.42], [6935, 2, 180, 5.56], [2328, 2, 98, 2.55], [130, 1, 38, 2.36], [305, 2, 95, 2.3], [615, 2, 71, 2.51], [616, 2, 71, 2.14], [326, 2, 58, 3.6], [6936, 2, 180, 4.89], [8650, 2, 146, 2.95], [8648, 2, 146, 3.41], [1446, 2, 98, 2.7], [7004, 1, 26, 1.95], [10, 2, 69, 2.15], [143, 2, 96, 2.53], [5491, 2, 70, 2.55], [7036, 1, 83, 3.78], [205, 2, 71, 2.27], [2775, 2, 102, 2.42], [144, 2, 73, 4.04], [3840, 1, 111, 2.93], [94, 4, 79, 4.27], [1124, 2, 121, 2.91], [434, 2, 70, 2.19], [3893, 1, 81, 2.46], [146, 2, 97, 2.52], [990, 2, 34, 2.19], [1504, 2, 132, 3.19], [12224, 1, 108, 2.13], [8853, 2, 180, 4.98], [1429, 2, 98, 2.39], [362, 2, 92, 2.39], [2776, 2, 102, 2.66], [3891, 1, 81, 2.46], [75, 2, 95, 2.19], [141, 2, 101, 2.19], [11404, 2, 68, 2.65], [11681, 2, 174, 4.93], [2497, 2, 132, 2.3], [5208, 3, 364, 2.37], [378, 2, 146, 3.61], [10574, 3, 327, 4.05], [11234, 2, 118, 3.77], [12870, 1, 91, 2.8], [13028, 3, 95, 5.22], [7005, 1, 39, 2.12], [10149, 3, 579, 3.39], [21793, 1, 158, 2.39], [3980, 4, 311, 3.9], [145, 2, 97, 2.42], [11811, 1, 296, 2.28], [5165, 1, 30, 4.47], [20927, 1, 39, 2.14], [998, 2, 153, 4.31], [8672, 2, 186, 4.42], [417, 2, 101, 2.26], [9760, 29, 46, 2.16], [1886, 2, 101, 2.3], [2436, 4, 76, 2.48], [346, 3, 410, 2.18], [1006, 2, 148, 2.47], [3, 2, 78, 2.31], [972, 3, 387, 2.33]]</t>
+  </si>
+  <si>
+    <t>[[88, 10, 16, 1.96], [8915, 2, 8, 0.98], [2327, 2, 7, 0.95], [589, 2, 8, 0.99], [2778, 2, 7, 0.94], [6935, 2, 11, 4.09], [2328, 2, 7, 1.07], [130, 1, 7, 0.88], [305, 2, 7, 0.82], [615, 2, 7, 1.04], [616, 2, 7, 0.67], [326, 2, 7, 2.12], [6936, 2, 7, 3.42], [8650, 2, 7, 1.47], [8648, 2, 7, 1.93], [1446, 2, 7, 1.22], [7004, 1, 7, 0.96], [10, 2, 7, 0.67], [143, 2, 7, 1.05], [5491, 2, 7, 1.07], [7036, 1, 7, 2.3], [205, 2, 7, 0.8], [2775, 2, 7, 0.94], [144, 2, 7, 2.72], [3840, 1, 7, 1.45], [94, 4, 7, 2.79], [1124, 2, 7, 1.43], [434, 2, 7, 0.71], [3893, 1, 7, 0.98], [146, 2, 7, 1.05], [990, 2, 7, 0.71], [1504, 2, 7, 1.71], [12224, 1, 7, 0.65], [8853, 2, 7, 3.51], [1429, 2, 7, 0.91], [362, 2, 7, 0.91], [2776, 2, 7, 1.18], [3891, 1, 7, 0.98], [75, 2, 7, 0.71], [141, 2, 7, 0.71], [11404, 2, 7, 1.17], [11681, 2, 11, 3.45], [2497, 2, 7, 0.82], [5208, 3, 7, 0.88], [378, 2, 7, 2.13], [10574, 3, 9, 2.57], [11234, 2, 7, 2.3], [12870, 1, 7, 1.33], [13028, 3, 7, 3.74], [7005, 1, 7, 0.8], [10149, 3, 21, 1.92], [21793, 1, 7, 0.92], [3980, 4, 7, 2.43], [145, 2, 7, 0.95], [11811, 1, 7, 0.8], [5165, 1, 7, 2.99], [20927, 1, 7, 0.83], [998, 2, 7, 2.83], [8672, 2, 7, 2.94], [417, 2, 7, 0.78], [9760, 29, 7, 0.68], [1886, 2, 7, 0.82], [2436, 4, 7, 1.0], [346, 3, 7, 0.71], [1006, 2, 7, 0.99], [3, 2, 7, 0.84], [972, 3, 8, 0.86], [2424, 80, 7, 1.01], [3495, 3, 16, 0.99], [6158, 2, 7, 0.88], [9372, 1, 7, 3.6], [5076, 1, 7, 0.79], [11770, 1, 7, 0.84], [5165, 2, 8, 2.84], [126, 2, 7, 2.12], [74, 1, 7, 2.89], [140, 2, 7, 2.12], [8939, 2, 7, 0.92], [11769, 1, 7, 0.78], [3982, 3, 20, 0.98], [1492, 1, 7, 0.95], [996, 2, 7, 2.83], [2774, 2, 7, 1.43], [2912, 2, 12, 0.65], [20256, 2, 7, 0.96], [12721, 2, 7, 1.26], [9491, 21, 17, 0.8], [6497, 1, 7, 2.0], [3981, 3, 22, 1.17], [2423, 80, 7, 1.38], [5434, 1, 7, 0.91], [12229, 2, 7, 0.87], [11685, 2, 11, 3.45], [5584, 3, 7, 2.31], [11767, 1, 7, 0.9], [10407, 10, 10, 3.08], [10388, 2, 7, 3.35], [8677, 3, 7, 0.77], [346, 1, 7, 0.69], [11179, 1, 7, 1.3], [823, 1, 7, 1.73], [2438, 2, 8, 0.84], [2424, 29, 7, 1.06], [5209, 3, 7, 0.88], [2104, 3, 15, 0.62], [8898, 3, 7, 2.85], [2805, 137, 7, 1.1], [12526, 2, 7, 2.99], [3900, 3, 7, 2.31], [11812, 1, 7, 0.87], [4253, 1, 7, 0.99], [11490, 1, 7, 0.79], [3975, 4, 7, 2.36], [96, 11, 21, 0.64], [8676, 2, 7, 1.01], [412, 1, 7, 1.85], [1622, 1, 7, 0.83], [22247, 2, 7, 1.6], [972, 1, 7, 0.95], [1274, 1, 7, 0.87], [13893, 2, 7, 0.82], [12764, 2, 8, 0.63], [9784, 1, 7, 0.86], [11813, 1, 7, 1.08], [10386, 2, 7, 1.95], [11814, 1, 7, 0.73], [8283, 2, 8, 0.97], [8635, 3, 7, 0.83], [6097, 80, 7, 2.68], [10410, 10, 15, 3.12], [1243, 2, 7, 0.93], [6489, 11, 22, 2.16], [7567, 3, 7, 2.14], [2424, 80, 109, 2.49], [3495, 3, 627, 2.48], [6158, 2, 169, 2.36], [9372, 1, 151, 5.08], [5076, 1, 85, 2.27], [11770, 1, 143, 2.32], [5165, 2, 239, 4.32], [126, 2, 58, 3.6], [74, 1, 132, 4.37], [140, 2, 58, 3.6], [8939, 2, 124, 2.4], [11769, 1, 105, 2.26], [3982, 3, 516, 2.45], [1492, 1, 24, 2.43], [996, 2, 153, 4.31], [2774, 2, 132, 2.91], [2912, 2, 189, 1.97], [20256, 2, 61, 2.44], [12721, 2, 185, 2.73], [9491, 21, 1378, 2.25], [6497, 1, 24, 3.47], [3981, 3, 1053, 2.67], [2423, 80, 120, 2.86], [5434, 1, 31, 2.39], [12229, 2, 98, 2.34], [11685, 2, 174, 4.93], [5584, 3, 160, 3.78], [11767, 1, 105, 2.38], [10407, 10, 758, 4.56], [10388, 2, 141, 4.83], [8677, 3, 203, 2.25], [346, 1, 102, 2.16], [11179, 1, 56, 2.78], [823, 1, 26, 3.2], [2438, 2, 410, 2.31], [2424, 29, 22, 2.54], [5209, 3, 364, 2.37], [2104, 3, 115, 1.6], [8898, 3, 191, 4.33], [2805, 137, 119, 2.58], [12526, 2, 177, 4.47], [3900, 3, 28, 3.79], [11812, 1, 154, 2.35], [4253, 1, 110, 2.47], [11490, 1, 71, 2.27], [3975, 4, 311, 3.84], [96, 11, 553, 2.13], [8676, 2, 186, 2.49], [412, 1, 54, 3.33], [1622, 1, 69, 2.31], [22247, 2, 185, 3.07], [972, 1, 64, 2.43], [1274, 1, 53, 2.35], [13893, 2, 181, 2.3], [12764, 2, 477, 2.11], [9784, 1, 47, 2.34], [11813, 1, 204, 2.56], [10386, 2, 141, 3.43], [11814, 1, 144, 2.21], [8283, 2, 307, 2.45], [6097, 80, 45, 4.15], [10410, 10, 758, 4.6], [1243, 2, 64, 2.41], [6489, 11, 743, 3.65], [7567, 3, 45, 3.62]]</t>
   </si>
 </sst>
 </file>
@@ -491,13 +404,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -510,173 +423,31 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6">
       <c r="A2">
-        <v>501</v>
+        <v>3304</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>401</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>236</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>337</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>797</v>
-      </c>
-      <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>339</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>703</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="F2" t="s">
         <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
-        <v>962</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
-        <v>170</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
-        <v>632</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/QD_upload.xlsx
+++ b/QD_upload.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="44">
   <si>
     <t>Tag ID</t>
   </si>
@@ -34,19 +34,118 @@
     <t>Discounts Group 2</t>
   </si>
   <si>
+    <t>AssiutFCQD</t>
+  </si>
+  <si>
+    <t>BanisweifQD</t>
+  </si>
+  <si>
+    <t>BarageelQD</t>
+  </si>
+  <si>
     <t>ElMahalaQD</t>
   </si>
   <si>
-    <t>07/12/2025 16:43</t>
-  </si>
-  <si>
-    <t>09/12/2025 23:59</t>
-  </si>
-  <si>
-    <t>[[88, 10, 8, 0.93], [8915, 2, 5, 0.58], [2327, 2, 4, 0.52], [589, 2, 5, 0.57], [2778, 2, 4, 0.51], [6935, 2, 5, 1.77], [2328, 2, 4, 0.58], [130, 1, 4, 0.48], [305, 2, 4, 0.45], [615, 2, 4, 0.57], [616, 2, 4, 0.36], [326, 2, 4, 1.15], [6936, 2, 4, 1.74], [8650, 2, 4, 0.39], [8648, 2, 4, 1.05], [1446, 2, 4, 0.39], [7004, 1, 4, 0.52], [10, 2, 4, 0.37], [143, 2, 4, 0.58], [5491, 2, 4, 0.58], [7036, 1, 4, 0.44], [205, 2, 4, 0.43], [2775, 2, 4, 0.51], [144, 2, 4, 0.53], [3840, 1, 4, 0.79], [94, 4, 4, 1.41], [1124, 2, 4, 0.48], [434, 2, 4, 0.39], [3893, 1, 4, 0.53], [146, 2, 4, 0.57], [990, 2, 4, 0.36], [1504, 2, 4, 0.93], [12224, 1, 4, 0.35], [8853, 2, 4, 1.79], [1429, 2, 4, 0.39], [362, 2, 4, 0.5], [2776, 2, 4, 0.64], [3891, 1, 4, 0.53], [75, 2, 4, 0.39], [141, 2, 4, 0.39], [11404, 2, 4, 0.64], [11681, 2, 5, 0.83], [2497, 2, 4, 0.45], [5208, 3, 4, 0.48], [378, 2, 4, 1.16], [10574, 3, 5, 1.36], [11234, 2, 4, 1.25], [12870, 1, 4, 0.72], [13028, 3, 4, 2.04], [7005, 1, 4, 0.44], [10149, 3, 13, 0.4], [21793, 1, 4, 0.5], [3980, 4, 4, 1.23], [145, 2, 4, 0.51], [11811, 1, 4, 0.44], [5165, 1, 4, 1.06], [20927, 1, 4, 0.45], [998, 2, 4, 1.0], [8672, 2, 4, 0.98], [417, 2, 4, 0.42], [9760, 29, 4, 0.37], [1886, 2, 4, 0.45], [2436, 4, 4, 0.55], [346, 3, 4, 0.39], [1006, 2, 4, 0.54], [3, 2, 4, 0.46], [972, 3, 5, 0.51], [2424, 80, 4, 0.49], [3495, 3, 10, 0.56], [6158, 2, 4, 0.48], [9372, 1, 4, 1.47], [5076, 1, 4, 0.43], [11770, 1, 4, 0.46], [5165, 2, 5, 1.02], [126, 2, 4, 1.15], [74, 1, 4, 1.47], [140, 2, 4, 1.15], [8939, 2, 4, 0.5], [11769, 1, 4, 0.42], [3982, 3, 10, 0.46], [1492, 1, 4, 0.52], [996, 2, 4, 0.66], [2774, 2, 4, 0.78], [2912, 2, 7, 0.36], [20256, 2, 4, 0.52], [12721, 2, 4, 0.49], [9491, 21, 10, 0.44], [6497, 1, 4, 1.09], [3981, 3, 11, 0.56], [2423, 80, 4, 0.75], [5434, 1, 4, 0.5], [12229, 2, 4, 0.47], [11685, 2, 5, 0.83], [5584, 3, 4, 1.25], [11767, 1, 4, 0.49], [10407, 10, 6, 1.56], [10388, 2, 4, 0.78], [8677, 3, 4, 0.42], [346, 1, 4, 0.37], [11179, 1, 4, 0.71], [823, 1, 4, 0.94], [2438, 2, 5, 0.5], [2424, 29, 4, 0.55], [5209, 3, 4, 0.48], [2104, 3, 9, 0.35], [8898, 3, 4, 1.44], [2805, 137, 4, 0.6], [12526, 2, 4, 0.94], [3900, 3, 4, 1.26], [11812, 1, 4, 0.47], [4253, 1, 4, 0.54], [11490, 1, 4, 0.43], [3975, 4, 4, 1.2], [96, 11, 13, 0.38], [8676, 2, 4, 0.55], [412, 1, 4, 0.43], [1622, 1, 4, 0.45], [22247, 2, 4, 0.87], [972, 1, 4, 0.52], [1274, 1, 4, 0.48], [13893, 2, 4, 0.45], [12764, 2, 5, 0.38], [9784, 1, 4, 0.47], [11813, 1, 4, 0.4], [10386, 2, 4, 0.37], [11814, 1, 4, 0.4], [8283, 2, 5, 0.55], [8635, 3, 4, 0.45], [6097, 80, 4, 1.35], [10410, 10, 9, 1.6], [1243, 2, 4, 0.5], [6489, 11, 13, 1.1], [7567, 3, 4, 1.16], [88, 10, 368, 3.44], [8915, 2, 124, 2.46], [2327, 2, 98, 2.43], [589, 2, 99, 2.47], [2778, 2, 102, 2.42], [6935, 2, 180, 5.56], [2328, 2, 98, 2.55], [130, 1, 38, 2.36], [305, 2, 95, 2.3], [615, 2, 71, 2.51], [616, 2, 71, 2.14], [326, 2, 58, 3.6], [6936, 2, 180, 4.89], [8650, 2, 146, 2.95], [8648, 2, 146, 3.41], [1446, 2, 98, 2.7], [7004, 1, 26, 1.95], [10, 2, 69, 2.15], [143, 2, 96, 2.53], [5491, 2, 70, 2.55], [7036, 1, 83, 3.78], [205, 2, 71, 2.27], [2775, 2, 102, 2.42], [144, 2, 73, 4.04], [3840, 1, 111, 2.93], [94, 4, 79, 4.27], [1124, 2, 121, 2.91], [434, 2, 70, 2.19], [3893, 1, 81, 2.46], [146, 2, 97, 2.52], [990, 2, 34, 2.19], [1504, 2, 132, 3.19], [12224, 1, 108, 2.13], [8853, 2, 180, 4.98], [1429, 2, 98, 2.39], [362, 2, 92, 2.39], [2776, 2, 102, 2.66], [3891, 1, 81, 2.46], [75, 2, 95, 2.19], [141, 2, 101, 2.19], [11404, 2, 68, 2.65], [11681, 2, 174, 4.93], [2497, 2, 132, 2.3], [5208, 3, 364, 2.37], [378, 2, 146, 3.61], [10574, 3, 327, 4.05], [11234, 2, 118, 3.77], [12870, 1, 91, 2.8], [13028, 3, 95, 5.22], [7005, 1, 39, 2.12], [10149, 3, 579, 3.39], [21793, 1, 158, 2.39], [3980, 4, 311, 3.9], [145, 2, 97, 2.42], [11811, 1, 296, 2.28], [5165, 1, 30, 4.47], [20927, 1, 39, 2.14], [998, 2, 153, 4.31], [8672, 2, 186, 4.42], [417, 2, 101, 2.26], [9760, 29, 46, 2.16], [1886, 2, 101, 2.3], [2436, 4, 76, 2.48], [346, 3, 410, 2.18], [1006, 2, 148, 2.47], [3, 2, 78, 2.31], [972, 3, 387, 2.33]]</t>
-  </si>
-  <si>
-    <t>[[88, 10, 16, 1.96], [8915, 2, 8, 0.98], [2327, 2, 7, 0.95], [589, 2, 8, 0.99], [2778, 2, 7, 0.94], [6935, 2, 11, 4.09], [2328, 2, 7, 1.07], [130, 1, 7, 0.88], [305, 2, 7, 0.82], [615, 2, 7, 1.04], [616, 2, 7, 0.67], [326, 2, 7, 2.12], [6936, 2, 7, 3.42], [8650, 2, 7, 1.47], [8648, 2, 7, 1.93], [1446, 2, 7, 1.22], [7004, 1, 7, 0.96], [10, 2, 7, 0.67], [143, 2, 7, 1.05], [5491, 2, 7, 1.07], [7036, 1, 7, 2.3], [205, 2, 7, 0.8], [2775, 2, 7, 0.94], [144, 2, 7, 2.72], [3840, 1, 7, 1.45], [94, 4, 7, 2.79], [1124, 2, 7, 1.43], [434, 2, 7, 0.71], [3893, 1, 7, 0.98], [146, 2, 7, 1.05], [990, 2, 7, 0.71], [1504, 2, 7, 1.71], [12224, 1, 7, 0.65], [8853, 2, 7, 3.51], [1429, 2, 7, 0.91], [362, 2, 7, 0.91], [2776, 2, 7, 1.18], [3891, 1, 7, 0.98], [75, 2, 7, 0.71], [141, 2, 7, 0.71], [11404, 2, 7, 1.17], [11681, 2, 11, 3.45], [2497, 2, 7, 0.82], [5208, 3, 7, 0.88], [378, 2, 7, 2.13], [10574, 3, 9, 2.57], [11234, 2, 7, 2.3], [12870, 1, 7, 1.33], [13028, 3, 7, 3.74], [7005, 1, 7, 0.8], [10149, 3, 21, 1.92], [21793, 1, 7, 0.92], [3980, 4, 7, 2.43], [145, 2, 7, 0.95], [11811, 1, 7, 0.8], [5165, 1, 7, 2.99], [20927, 1, 7, 0.83], [998, 2, 7, 2.83], [8672, 2, 7, 2.94], [417, 2, 7, 0.78], [9760, 29, 7, 0.68], [1886, 2, 7, 0.82], [2436, 4, 7, 1.0], [346, 3, 7, 0.71], [1006, 2, 7, 0.99], [3, 2, 7, 0.84], [972, 3, 8, 0.86], [2424, 80, 7, 1.01], [3495, 3, 16, 0.99], [6158, 2, 7, 0.88], [9372, 1, 7, 3.6], [5076, 1, 7, 0.79], [11770, 1, 7, 0.84], [5165, 2, 8, 2.84], [126, 2, 7, 2.12], [74, 1, 7, 2.89], [140, 2, 7, 2.12], [8939, 2, 7, 0.92], [11769, 1, 7, 0.78], [3982, 3, 20, 0.98], [1492, 1, 7, 0.95], [996, 2, 7, 2.83], [2774, 2, 7, 1.43], [2912, 2, 12, 0.65], [20256, 2, 7, 0.96], [12721, 2, 7, 1.26], [9491, 21, 17, 0.8], [6497, 1, 7, 2.0], [3981, 3, 22, 1.17], [2423, 80, 7, 1.38], [5434, 1, 7, 0.91], [12229, 2, 7, 0.87], [11685, 2, 11, 3.45], [5584, 3, 7, 2.31], [11767, 1, 7, 0.9], [10407, 10, 10, 3.08], [10388, 2, 7, 3.35], [8677, 3, 7, 0.77], [346, 1, 7, 0.69], [11179, 1, 7, 1.3], [823, 1, 7, 1.73], [2438, 2, 8, 0.84], [2424, 29, 7, 1.06], [5209, 3, 7, 0.88], [2104, 3, 15, 0.62], [8898, 3, 7, 2.85], [2805, 137, 7, 1.1], [12526, 2, 7, 2.99], [3900, 3, 7, 2.31], [11812, 1, 7, 0.87], [4253, 1, 7, 0.99], [11490, 1, 7, 0.79], [3975, 4, 7, 2.36], [96, 11, 21, 0.64], [8676, 2, 7, 1.01], [412, 1, 7, 1.85], [1622, 1, 7, 0.83], [22247, 2, 7, 1.6], [972, 1, 7, 0.95], [1274, 1, 7, 0.87], [13893, 2, 7, 0.82], [12764, 2, 8, 0.63], [9784, 1, 7, 0.86], [11813, 1, 7, 1.08], [10386, 2, 7, 1.95], [11814, 1, 7, 0.73], [8283, 2, 8, 0.97], [8635, 3, 7, 0.83], [6097, 80, 7, 2.68], [10410, 10, 15, 3.12], [1243, 2, 7, 0.93], [6489, 11, 22, 2.16], [7567, 3, 7, 2.14], [2424, 80, 109, 2.49], [3495, 3, 627, 2.48], [6158, 2, 169, 2.36], [9372, 1, 151, 5.08], [5076, 1, 85, 2.27], [11770, 1, 143, 2.32], [5165, 2, 239, 4.32], [126, 2, 58, 3.6], [74, 1, 132, 4.37], [140, 2, 58, 3.6], [8939, 2, 124, 2.4], [11769, 1, 105, 2.26], [3982, 3, 516, 2.45], [1492, 1, 24, 2.43], [996, 2, 153, 4.31], [2774, 2, 132, 2.91], [2912, 2, 189, 1.97], [20256, 2, 61, 2.44], [12721, 2, 185, 2.73], [9491, 21, 1378, 2.25], [6497, 1, 24, 3.47], [3981, 3, 1053, 2.67], [2423, 80, 120, 2.86], [5434, 1, 31, 2.39], [12229, 2, 98, 2.34], [11685, 2, 174, 4.93], [5584, 3, 160, 3.78], [11767, 1, 105, 2.38], [10407, 10, 758, 4.56], [10388, 2, 141, 4.83], [8677, 3, 203, 2.25], [346, 1, 102, 2.16], [11179, 1, 56, 2.78], [823, 1, 26, 3.2], [2438, 2, 410, 2.31], [2424, 29, 22, 2.54], [5209, 3, 364, 2.37], [2104, 3, 115, 1.6], [8898, 3, 191, 4.33], [2805, 137, 119, 2.58], [12526, 2, 177, 4.47], [3900, 3, 28, 3.79], [11812, 1, 154, 2.35], [4253, 1, 110, 2.47], [11490, 1, 71, 2.27], [3975, 4, 311, 3.84], [96, 11, 553, 2.13], [8676, 2, 186, 2.49], [412, 1, 54, 3.33], [1622, 1, 69, 2.31], [22247, 2, 185, 3.07], [972, 1, 64, 2.43], [1274, 1, 53, 2.35], [13893, 2, 181, 2.3], [12764, 2, 477, 2.11], [9784, 1, 47, 2.34], [11813, 1, 204, 2.56], [10386, 2, 141, 3.43], [11814, 1, 144, 2.21], [8283, 2, 307, 2.45], [6097, 80, 45, 4.15], [10410, 10, 758, 4.6], [1243, 2, 64, 2.41], [6489, 11, 743, 3.65], [7567, 3, 45, 3.62]]</t>
+    <t>KhorshedAlexQD</t>
+  </si>
+  <si>
+    <t>MansouraFCQD</t>
+  </si>
+  <si>
+    <t>MenyaSamalotQD</t>
+  </si>
+  <si>
+    <t>MostorodQD</t>
+  </si>
+  <si>
+    <t>SakkarahQD</t>
+  </si>
+  <si>
+    <t>SharqyaQD</t>
+  </si>
+  <si>
+    <t>SohagQD</t>
+  </si>
+  <si>
+    <t>TantaQD</t>
+  </si>
+  <si>
+    <t>08/12/2025 18:48</t>
+  </si>
+  <si>
+    <t>10/12/2025 23:59</t>
+  </si>
+  <si>
+    <t>[[2778, 2, 5, 0.47], [6935, 2, 7, 1.8], [305, 2, 4, 0.48], [8672, 2, 5, 0.91], [615, 2, 4, 0.45], [1504, 2, 5, 0.58], [2775, 2, 4, 0.66], [145, 2, 4, 0.49], [2776, 2, 4, 1.41], [8853, 2, 4, 1.78], [2327, 2, 4, 0.51], [130, 1, 4, 0.45], [12721, 2, 5, 0.72], [143, 2, 4, 0.51], [2328, 2, 4, 0.51], [146, 2, 4, 0.62], [2049, 3, 8, 0.42], [361, 2, 4, 0.59], [11681, 2, 5, 1.64], [616, 2, 4, 1.37], [362, 2, 4, 0.51], [5491, 2, 4, 0.56], [205, 2, 4, 0.37], [141, 2, 4, 0.55], [2497, 2, 4, 0.45], [8650, 2, 4, 1.53], [144, 2, 4, 0.53], [1124, 2, 5, 0.82], [5493, 2, 4, 0.76], [417, 2, 4, 0.47], [8676, 2, 4, 0.6], [8673, 2, 4, 0.73], [3670, 2, 4, 2.02], [2774, 2, 4, 0.82], [8648, 2, 4, 1.15], [589, 2, 4, 0.43], [3, 2, 4, 0.66], [308, 1, 8, 0.67], [206, 2, 4, 0.37], [6097, 80, 4, 1.86], [2423, 29, 4, 3.59], [22247, 2, 4, 1.21], [6497, 1, 4, 0.46], [11836, 2, 4, 0.51], [8674, 2, 4, 1.22], [624, 2, 4, 1.18], [2055, 3, 4, 0.46], [2423, 80, 4, 3.59], [523, 2, 4, 0.66], [12344, 1, 4, 0.71], [593, 2, 5, 0.53], [6097, 29, 4, 1.86], [6098, 80, 4, 2.09], [990, 2, 4, 0.77], [12720, 2, 4, 0.72], [75, 2, 4, 0.56], [8915, 2, 4, 0.41], [88, 10, 8, 0.48], [944, 15, 4, 0.46], [326, 2, 4, 0.85], [60, 3, 5, 0.86], [13260, 29, 4, 0.36], [3429, 15, 4, 0.46], [1492, 1, 4, 0.65], [1413, 15, 4, 0.54], [411, 2, 4, 0.37], [412, 1, 4, 1.34], [2422, 80, 4, 1.97], [6496, 1, 4, 0.5], [10149, 3, 13, 0.55], [378, 2, 4, 2.29], [2422, 29, 4, 1.97], [7704, 2, 4, 0.43], [6098, 29, 4, 2.09], [159, 3, 5, 0.72], [151, 1, 4, 0.51], [22316, 3, 4, 0.46], [11738, 2, 4, 1.92], [20252, 2, 4, 0.53], [13264, 29, 4, 0.55], [12269, 2, 4, 0.45], [345, 3, 4, 0.51], [13258, 29, 4, 1.23], [1490, 1, 4, 0.36], [10407, 10, 6, 1.18], [2331, 1, 4, 0.72], [22558, 3, 4, 0.41], [307, 2, 4, 0.87], [1163, 3, 4, 1.45], [416, 1, 4, 1.52], [201, 3, 4, 0.51], [2821, 3, 8, 0.45], [114, 3, 4, 0.62], [2912, 1, 4, 1.31], [2438, 1, 4, 1.36], [149, 2, 4, 0.37], [418, 2, 4, 0.37], [7705, 2, 4, 0.43], [13259, 29, 4, 1.13], [957, 2, 4, 0.51], [432, 3, 4, 2.04], [12229, 2, 4, 0.7], [7706, 2, 4, 0.43], [21793, 1, 4, 1.44], [11687, 2, 4, 0.56], [8938, 2, 4, 0.54], [11844, 2, 4, 0.52], [5490, 2, 4, 0.46], [1413, 16, 4, 0.54], [7036, 1, 4, 0.43], [1414, 15, 4, 0.5], [10406, 10, 7, 1.21], [21713, 3, 7, 0.46], [20255, 2, 4, 0.5], [2421, 80, 4, 1.42], [12870, 1, 4, 2.33], [9784, 1, 4, 0.91], [10408, 10, 6, 1.04], [10410, 10, 6, 1.18], [11402, 1, 4, 0.36], [3478, 2, 4, 1.28], [7084, 3, 4, 0.36], [19687, 1, 4, 1.2], [11161, 1, 5, 0.44], [956, 2, 4, 0.45], [2703, 3, 4, 0.45], [1886, 2, 4, 0.5], [21781, 2, 4, 0.47], [107, 7, 5, 1.2], [22125, 2, 4, 0.36], [10411, 10, 6, 1.12], [11690, 2, 4, 0.47], [11490, 1, 4, 0.55], [2778, 2, 156, 2.86], [6935, 2, 278, 6], [305, 2, 146, 2.67], [8672, 2, 286, 3.69], [615, 2, 107, 3.51], [1504, 2, 203, 3.13], [2775, 2, 156, 3.08], [145, 2, 150, 2.69], [2776, 2, 156, 4.37], [8853, 2, 278, 5.28], [2327, 2, 150, 3.61], [130, 1, 20, 2.93], [12721, 2, 282, 3.47], [143, 2, 148, 2.72], [2328, 2, 150, 3.64], [146, 2, 150, 2.92], [2049, 3, 368, 2.36], [361, 2, 156, 2.87], [11681, 2, 274, 6], [616, 2, 107, 4.31], [362, 2, 143, 2.73], [5491, 2, 108, 2.81], [205, 2, 109, 2.53], [141, 2, 155, 2.79], [2497, 2, 203, 2.93], [8650, 2, 224, 5.39], [144, 2, 150, 2.75], [1124, 2, 186, 3.52], [5493, 2, 108, 3.19], [417, 2, 156, 2.66], [8676, 2, 286, 2.88], [8673, 2, 287, 4.73], [3670, 2, 234, 6], [2774, 2, 203, 5.7], [8648, 2, 224, 4.76], [589, 2, 153, 2.57], [3, 2, 121, 2.99], [308, 1, 173, 2.94], [206, 2, 109, 2.53], [6097, 80, 67, 5.21], [2423, 29, 35, 6], [22247, 2, 282, 4.02], [6497, 1, 38, 2.63], [11836, 2, 267, 2.72], [8674, 2, 286, 4.03], [624, 2, 107, 3.95], [2055, 3, 241, 2.27], [2423, 80, 177, 6], [523, 2, 156, 3.01], [12344, 1, 613, 3.08], [593, 2, 229, 2.67], [6097, 29, 34, 5.21], [6098, 80, 73, 5.62], [990, 2, 26, 2.84], [12720, 2, 282, 3.47], [75, 2, 144, 2.82], [8915, 2, 128, 2.36], [88, 10, 561, 4.29], [944, 15, 44, 2.63], [326, 2, 45, 3.51], [60, 3, 814, 3.28], [13260, 29, 72, 2.44], [3429, 15, 53, 2.63], [1492, 1, 37, 2.99], [1413, 15, 99, 2.77], [411, 2, 109, 2.53], [412, 1, 83, 4.53]]</t>
+  </si>
+  <si>
+    <t>[[141, 2, 4, 0.48], [2328, 2, 4, 0.51], [8650, 2, 4, 0.96], [362, 2, 4, 0.51], [5491, 2, 4, 0.6], [5493, 2, 4, 0.8], [130, 1, 4, 0.45], [589, 2, 4, 0.52], [2327, 2, 4, 0.51], [11685, 2, 4, 1.87], [326, 2, 4, 0.62], [8672, 2, 5, 0.91], [417, 2, 4, 0.47], [6935, 2, 7, 1.31], [1124, 2, 5, 0.35], [11681, 2, 5, 1.87], [206, 2, 4, 0.47], [8648, 2, 4, 0.58], [6936, 2, 4, 1.09], [142, 2, 4, 0.57], [8915, 2, 4, 0.39], [12721, 2, 5, 0.48], [1446, 2, 4, 0.52], [2049, 3, 8, 0.39], [11838, 2, 4, 0.56], [523, 2, 4, 0.66], [8676, 2, 4, 0.6], [615, 2, 4, 0.75], [305, 2, 4, 0.48], [616, 2, 4, 0.72], [412, 1, 4, 0.36], [413, 1, 4, 0.93], [11739, 2, 4, 1.85], [10574, 3, 5, 1.26], [145, 2, 4, 0.49], [2775, 2, 4, 0.42], [21793, 1, 4, 1.44], [1429, 2, 4, 0.52], [76, 2, 4, 1.11], [8675, 2, 5, 0.73], [990, 2, 4, 0.9], [8673, 2, 4, 1.02], [143, 2, 4, 0.58], [8938, 2, 4, 0.54], [11836, 2, 4, 0.47], [146, 2, 4, 0.62], [8674, 2, 4, 1.22], [6158, 2, 5, 1.33], [151, 1, 4, 0.51], [2776, 2, 4, 0.75], [2050, 3, 4, 0.35], [12720, 2, 4, 0.48], [10149, 3, 13, 0.89], [3495, 3, 10, 0.98], [12350, 1, 4, 0.77], [2054, 3, 4, 0.5], [75, 2, 4, 1.17], [2057, 3, 4, 0.35], [11738, 2, 4, 1.73], [1504, 2, 5, 0.47], [144, 2, 4, 0.53], [8939, 2, 4, 0.51], [416, 1, 4, 0.73], [22316, 3, 4, 0.46], [159, 3, 5, 0.72], [88, 10, 8, 0.48], [2859, 15, 4, 1.1], [7885, 4, 4, 0.44], [418, 2, 4, 0.37], [7084, 3, 4, 1.96], [10993, 2, 4, 0.46], [21798, 1, 4, 0.36], [20252, 2, 4, 0.5], [12346, 1, 4, 0.57], [414, 1, 4, 0.93], [7705, 2, 4, 1.15], [410, 1, 4, 0.48], [2424, 29, 4, 1.0], [12526, 2, 4, 1.1], [5165, 1, 4, 1.48], [2423, 29, 4, 1.99], [11844, 2, 4, 0.42], [2423, 80, 4, 1.96], [12351, 1, 4, 0.49], [6494, 1, 4, 0.42], [11490, 1, 4, 0.48], [378, 2, 4, 1.73], [12373, 1, 5, 1.29], [2424, 80, 4, 0.97], [13023, 3, 6, 1.51], [13034, 3, 5, 1.09], [60, 3, 5, 1.36], [1414, 15, 4, 0.56], [201, 3, 4, 0.51], [11770, 1, 4, 1.0], [1519, 3, 9, 0.4], [345, 3, 4, 0.51], [6952, 1, 4, 1.09], [159, 1, 4, 0.61], [9126, 1, 4, 0.86], [13928, 1, 4, 0.45], [11808, 1, 4, 0.43], [3430, 15, 4, 1.32], [20927, 1, 4, 0.48], [3429, 15, 4, 0.46], [11954, 1, 4, 0.42], [11811, 1, 4, 0.38], [432, 3, 4, 2.04], [566, 2, 4, 0.5], [2331, 1, 4, 0.72], [11504, 2, 4, 0.42], [10407, 10, 6, 1.18], [5584, 3, 4, 1.77], [114, 3, 4, 0.49], [7886, 4, 4, 0.44], [7004, 1, 4, 0.52], [1490, 1, 4, 1.32], [105, 3, 4, 0.44], [11089, 1, 4, 0.45], [1492, 1, 4, 0.65], [11953, 1, 4, 0.48], [8274, 3, 4, 2.3], [2703, 3, 4, 0.44], [6098, 80, 4, 2.27], [944, 15, 4, 0.46], [10410, 10, 6, 1.18], [1886, 2, 4, 0.5], [22317, 3, 5, 0.51], [94, 4, 4, 1.77], [11161, 1, 5, 0.44], [6097, 80, 4, 1.86], [3891, 1, 4, 2.08], [11485, 24, 4, 0.56], [141, 2, 156, 2.66], [2328, 2, 150, 3.64], [8650, 2, 225, 4.1], [362, 2, 143, 2.73], [5491, 2, 108, 2.89], [5493, 2, 108, 3.26], [130, 1, 20, 2.93], [589, 2, 153, 2.73], [2327, 2, 150, 3.61], [11685, 2, 274, 5.74], [326, 2, 45, 3.28], [8672, 2, 286, 3.69], [417, 2, 156, 2.66], [6935, 2, 282, 5.52], [1124, 2, 187, 3.06], [11681, 2, 274, 6], [206, 2, 36, 2.11], [8648, 2, 225, 4.31], [6936, 2, 282, 4.36], [142, 2, 156, 2.83], [8915, 2, 97, 2.14], [12721, 2, 283, 3.24], [1446, 2, 151, 3.34], [2049, 3, 547, 2.5], [11838, 2, 267, 2.8], [523, 2, 156, 3.01], [8676, 2, 286, 2.88], [615, 2, 108, 3.15], [305, 2, 146, 2.67], [616, 2, 108, 3.11], [412, 1, 83, 3.56], [413, 1, 86, 3.5], [11739, 2, 19, 4.46], [10574, 3, 499, 4.27], [145, 2, 150, 2.69], [2775, 2, 157, 2.56], [21793, 1, 241, 5.28], [1429, 2, 151, 2.81], [76, 2, 108, 3.83], [8675, 2, 286, 3.17], [990, 2, 17, 2.72], [8673, 2, 279, 4.65], [143, 2, 148, 2.84], [8938, 2, 191, 2.78], [11836, 2, 267, 2.64], [146, 2, 150, 2.92], [8674, 2, 286, 4.03], [6158, 2, 259, 4.44], [151, 1, 33, 2.73], [2776, 2, 157, 3.16], [2050, 3, 161, 1.72], [12720, 2, 283, 3.24], [10149, 3, 894, 3.33], [3495, 3, 960, 3.54], [12350, 1, 623, 3.19], [75, 2, 143, 3.94], [2057, 3, 161, 1.72], [11738, 2, 38, 4.79], [1504, 2, 204, 2.86], [144, 2, 150, 2.75], [8939, 2, 191, 2.72], [416, 1, 86, 3.12], [22316, 3, 317, 2.64], [159, 3, 706, 3.16], [88, 10, 561, 4.29], [2859, 15, 69, 3.81], [7885, 4, 47, 1.88]]</t>
+  </si>
+  <si>
+    <t>[[326, 2, 4, 0.47], [6935, 2, 8, 1.22], [589, 2, 5, 0.38], [141, 2, 4, 0.54], [75, 2, 4, 0.99], [3, 2, 4, 0.45], [1776, 1, 4, 0.58], [8915, 2, 5, 0.37], [2778, 2, 4, 0.58], [6936, 2, 5, 1.27], [8672, 2, 6, 0.97], [593, 2, 5, 0.36], [305, 2, 4, 0.48], [206, 2, 4, 0.39], [151, 1, 4, 0.44], [8648, 2, 4, 0.77], [2328, 2, 4, 0.51], [88, 10, 8, 1.33], [11681, 2, 5, 2.33], [990, 2, 4, 0.62], [8650, 2, 4, 1.15], [412, 1, 4, 0.91], [5151, 2, 4, 0.4], [2050, 3, 4, 0.66], [76, 2, 4, 1.11], [144, 2, 4, 0.5], [10149, 3, 15, 1.32], [345, 3, 5, 0.51], [2991, 3, 4, 1.1], [22247, 2, 4, 1.06], [3478, 2, 4, 1.28], [57, 1, 4, 0.38], [146, 2, 4, 0.56], [45, 2, 4, 1.12], [143, 2, 4, 0.46], [417, 2, 4, 0.79], [413, 1, 4, 0.35], [167, 3, 4, 1.09], [21793, 1, 4, 1.03], [1446, 2, 4, 0.53], [74, 1, 4, 0.84], [2055, 3, 4, 0.94], [346, 1, 4, 0.44], [201, 3, 5, 0.92], [168, 3, 4, 0.75], [10, 2, 4, 0.92], [7036, 1, 4, 0.54], [11234, 2, 4, 0.63], [1429, 2, 4, 0.54], [7084, 3, 4, 0.88], [335, 3, 10, 0.37], [8938, 2, 5, 0.37], [12721, 2, 6, 0.96], [5081, 2, 4, 0.54], [3495, 3, 13, 0.92], [8649, 2, 4, 1.15], [13028, 3, 4, 0.5], [308, 1, 4, 2.44], [410, 1, 4, 0.4], [3889, 1, 4, 1.02], [12870, 1, 4, 2.33], [10825, 21, 8, 0.37], [3893, 1, 4, 0.4], [96, 11, 14, 0.46], [1492, 1, 4, 0.38], [1006, 2, 4, 0.66], [1504, 2, 4, 0.48], [418, 2, 4, 0.42], [5208, 3, 5, 0.39], [3891, 1, 4, 0.75], [145, 2, 4, 0.43], [9827, 3, 4, 0.47], [94, 4, 4, 0.51], [8853, 2, 5, 1.19], [1490, 1, 4, 0.46], [13260, 29, 4, 0.46], [5812, 3, 5, 1.22], [416, 1, 4, 0.73], [432, 3, 4, 0.41], [8651, 2, 4, 1.15], [25, 1, 4, 0.95], [142, 2, 4, 0.74], [8939, 2, 4, 0.45], [12353, 1, 4, 0.7], [20256, 2, 4, 0.38], [21269, 3, 4, 0.95], [950, 1, 4, 0.36], [5086, 1, 4, 1.11], [1243, 2, 4, 0.92], [33, 1, 4, 0.66], [9069, 1, 4, 1.12], [229, 1, 4, 2.07], [998, 2, 4, 0.69], [12350, 1, 4, 0.62], [140, 2, 4, 0.47], [2878, 1, 4, 0.54], [7567, 3, 4, 1.12], [126, 2, 4, 0.47], [346, 3, 5, 0.43], [9829, 3, 4, 0.41], [8274, 3, 4, 0.59], [9691, 1, 4, 0.9], [35, 1, 4, 0.46], [5584, 3, 4, 0.44], [1070, 7, 8, 0.39], [997, 2, 4, 0.6], [3980, 4, 4, 1.31], [5660, 2, 4, 1.05], [5209, 3, 4, 0.37], [11914, 1, 4, 0.52], [1519, 3, 10, 0.4], [8898, 3, 4, 2.17], [159, 3, 5, 0.77], [9372, 1, 4, 0.39], [5513, 2, 4, 0.46], [1091, 1, 4, 0.53], [24, 1, 4, 0.95], [2775, 2, 4, 0.58], [13034, 3, 5, 1.26], [9081, 3, 7, 0.78], [523, 2, 4, 0.74], [12661, 1, 4, 0.47], [20255, 2, 4, 0.38], [11808, 1, 4, 0.79], [307, 2, 4, 0.64], [11491, 2, 4, 0.51], [434, 2, 4, 0.36], [1163, 3, 4, 0.47], [12225, 1, 4, 0.52], [336, 15, 4, 0.44], [952, 4, 4, 1.89], [8945, 3, 5, 2.0], [9082, 3, 15, 0.68], [326, 2, 84, 2.13], [6935, 2, 262, 4.2], [589, 2, 142, 1.96], [141, 2, 144, 2.14], [75, 2, 134, 2.98], [3, 2, 113, 1.97], [1776, 1, 104, 2.22], [8915, 2, 178, 1.85], [2778, 2, 144, 2.21], [6936, 2, 262, 3.83], [8672, 2, 262, 4.07], [593, 2, 211, 1.98], [305, 2, 135, 2.03], [206, 2, 101, 1.86], [151, 1, 62, 1.96], [8648, 2, 207, 4.36], [2328, 2, 139, 2.09], [88, 10, 520, 3.6], [11681, 2, 251, 6], [990, 2, 48, 2.31], [8650, 2, 207, 4.4], [412, 1, 77, 2.82], [5151, 2, 22, 1.88], [2050, 3, 438, 2.36], [76, 2, 100, 3.19], [144, 2, 139, 2.08], [10149, 3, 795, 4.41], [345, 3, 276, 2.97], [2991, 3, 149, 4.79], [22247, 2, 260, 3.65], [3478, 2, 69, 3.51], [57, 1, 79, 1.85], [146, 2, 139, 2.18], [45, 2, 100, 3.8], [143, 2, 137, 2.0], [417, 2, 143, 3.53], [413, 1, 79, 1.89], [167, 3, 209, 3.16], [21793, 1, 223, 4.78], [1446, 2, 141, 2.71], [74, 1, 182, 3.67], [2055, 3, 328, 3.85], [346, 1, 146, 1.96], [201, 3, 276, 4.21], [168, 3, 377, 2.54], [10, 2, 73, 4.08], [7036, 1, 117, 3.99], [11234, 2, 170, 2.41], [1429, 2, 141, 2.14], [7084, 3, 119, 3.6], [335, 3, 1242, 1.84], [8938, 2, 134, 1.65], [12721, 2, 260, 3.08], [5081, 2, 176, 2.15], [3495, 3, 886, 2.72], [8649, 2, 207, 4.12], [13028, 3, 136, 2.08], [308, 1, 155, 5.64], [410, 1, 98, 1.88], [3889, 1, 115, 3.03], [12870, 1, 126, 5.43], [10825, 21, 594, 1.82], [3893, 1, 115, 2.32], [96, 11, 783, 1.97], [1492, 1, 34, 1.85], [1006, 2, 211, 2.37], [1504, 2, 189, 2.04]]</t>
+  </si>
+  <si>
+    <t>[[88, 10, 8, 1.0], [2327, 2, 4, 0.52], [589, 2, 5, 0.5], [2778, 2, 4, 0.5], [6935, 2, 5, 1.69], [2328, 2, 4, 0.76], [130, 1, 4, 0.45], [615, 2, 4, 1.37], [305, 2, 4, 0.45], [616, 2, 4, 1.27], [6936, 2, 4, 1.66], [326, 2, 4, 1.22], [8650, 2, 4, 1.53], [8648, 2, 4, 1.15], [1446, 2, 4, 0.78], [7004, 1, 4, 1.24], [2049, 3, 5, 0.42], [10, 2, 4, 0.92], [159, 3, 5, 0.67], [143, 2, 4, 0.44], [593, 2, 4, 0.4], [2775, 2, 4, 0.5], [5491, 2, 4, 0.45], [7036, 1, 4, 1.2], [144, 2, 4, 0.54], [3840, 1, 4, 0.79], [151, 1, 4, 0.51], [8938, 2, 4, 0.54], [94, 4, 4, 0.4], [434, 2, 4, 0.49], [1124, 2, 4, 0.79], [3893, 1, 4, 0.39], [990, 2, 4, 0.77], [1504, 2, 4, 0.38], [146, 2, 4, 0.57], [8853, 2, 4, 1.7], [624, 2, 4, 1.22], [12224, 1, 4, 0.45], [1429, 2, 4, 0.78], [2776, 2, 4, 0.62], [3891, 1, 4, 0.41], [362, 2, 4, 0.52], [141, 2, 4, 0.39], [11681, 2, 5, 1.81], [378, 2, 4, 2.29], [5208, 3, 4, 0.97], [3889, 1, 4, 0.75], [1007, 2, 4, 0.46], [10574, 3, 4, 1.36], [11234, 2, 4, 1.25], [2054, 3, 4, 0.5], [12870, 1, 4, 1.18], [7005, 1, 4, 1.08], [7886, 4, 4, 0.44], [10149, 3, 13, 1.21], [21793, 1, 4, 1.84], [145, 2, 4, 0.5], [11811, 1, 4, 0.44], [7084, 3, 4, 0.57], [20927, 1, 4, 0.76], [2912, 1, 4, 1.27], [8672, 2, 4, 1.69], [5165, 1, 4, 1.52], [9760, 29, 4, 0.67], [998, 2, 4, 0.81], [997, 2, 4, 1.26], [417, 2, 4, 0.46], [2436, 4, 4, 0.78], [1886, 2, 4, 0.56], [1006, 2, 4, 0.55], [346, 3, 4, 0.43], [972, 3, 5, 0.51], [2424, 80, 4, 2.39], [229, 1, 4, 0.49], [3495, 3, 10, 0.92], [6158, 2, 4, 2.61], [8651, 2, 4, 1.18], [5076, 1, 4, 0.47], [9372, 1, 4, 1.34], [11953, 1, 4, 0.55], [7887, 4, 4, 0.47], [5165, 2, 5, 1.57], [20252, 2, 4, 0.48], [126, 2, 4, 1.22], [523, 2, 4, 0.36], [74, 1, 4, 1.69], [142, 2, 4, 0.36], [11770, 1, 4, 0.66], [140, 2, 4, 1.22], [8939, 2, 4, 0.49], [11954, 1, 4, 0.38], [1492, 1, 4, 0.53], [20256, 2, 4, 0.52], [996, 2, 4, 0.6], [11685, 2, 5, 1.83], [2912, 2, 7, 1.24], [2774, 2, 4, 0.55], [12721, 2, 4, 0.96], [3981, 3, 11, 0.62], [9491, 21, 10, 0.44], [5434, 1, 4, 0.83], [2423, 80, 4, 1.47], [11772, 1, 4, 0.46], [5584, 3, 4, 1.02], [10407, 10, 6, 1.18], [6496, 1, 4, 0.43], [10388, 2, 4, 0.55], [11179, 1, 4, 0.77], [2438, 2, 5, 1.09], [361, 2, 4, 0.41], [2805, 137, 4, 0.93], [5209, 3, 4, 0.97], [8898, 3, 4, 0.5], [12526, 2, 4, 0.53], [2424, 29, 4, 2.36], [7573, 1, 9, 0.82], [3900, 3, 4, 1.31], [2104, 3, 9, 0.4], [11812, 1, 4, 0.46], [4253, 1, 4, 0.54], [8676, 2, 4, 1.2], [1519, 3, 10, 0.4], [22247, 2, 4, 1.14], [96, 11, 13, 0.38], [1622, 1, 4, 0.45], [412, 1, 4, 0.44], [12764, 2, 5, 0.73], [972, 1, 4, 0.51], [432, 3, 4, 2.04], [9784, 1, 4, 0.52], [10386, 2, 4, 1.29], [1274, 1, 4, 0.48], [159, 16, 4, 0.56], [88, 10, 549, 3.73], [2327, 2, 147, 2.59], [589, 2, 149, 2.51], [2778, 2, 153, 2.56], [6935, 2, 272, 5.53], [2328, 2, 147, 3.03], [130, 1, 19, 2.84], [615, 2, 104, 4.64], [305, 2, 143, 2.46], [616, 2, 104, 3.97], [6936, 2, 272, 4.9], [326, 2, 87, 4.37], [8650, 2, 218, 4.44], [8648, 2, 218, 4.71], [1446, 2, 99, 3.29], [2049, 3, 359, 2.34], [10, 2, 34, 4.03], [159, 3, 687, 2.82], [143, 2, 144, 2.45], [593, 2, 222, 2.57], [2775, 2, 153, 2.56], [5491, 2, 102, 3.16], [7036, 1, 125, 4.66], [144, 2, 147, 2.63], [3840, 1, 167, 3.09], [151, 1, 43, 2.78], [8938, 2, 125, 2.46], [94, 4, 117, 3.74], [434, 2, 104, 2.53], [1124, 2, 181, 3.1], [3893, 1, 122, 2.35], [990, 2, 25, 2.76], [1504, 2, 199, 2.33], [146, 2, 147, 2.68], [8853, 2, 272, 4.99], [624, 2, 104, 3.89], [12224, 1, 162, 2.47], [1429, 2, 148, 3.1], [2776, 2, 153, 2.77], [3891, 1, 122, 2.4], [362, 2, 138, 2.59], [141, 2, 152, 2.36], [11681, 2, 260, 5.81], [378, 2, 218, 5.84], [5208, 3, 541, 3.41], [3889, 1, 122, 3.01], [1007, 2, 263, 2.48], [10574, 3, 328, 4.69], [11234, 2, 178, 3.94], [2054, 3, 157, 1.88], [12870, 1, 134, 4.83], [7005, 1, 26, 2.97], [7886, 4, 70, 2.11], [10149, 3, 864, 3.73], [21793, 1, 233, 5.69], [145, 2, 147, 2.56], [11811, 1, 446, 2.44], [7084, 3, 128, 2.69], [20927, 1, 77, 3.03], [2912, 1, 47, 3.96], [8672, 2, 275, 5.25], [5165, 1, 46, 4.64], [9760, 29, 70, 2.87], [998, 2, 232, 3.14], [997, 2, 232, 3.96], [417, 2, 151, 2.47], [2436, 4, 112, 3.82]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 6, 1.37], [141, 2, 4, 0.53], [589, 2, 5, 0.45], [2778, 2, 4, 1.0], [6936, 2, 5, 0.94], [8648, 2, 4, 2.08], [362, 2, 4, 0.56], [11681, 2, 9, 0.85], [8650, 2, 4, 2.08], [326, 2, 4, 0.47], [205, 2, 4, 0.46], [2328, 2, 4, 0.39], [1446, 2, 4, 0.5], [130, 1, 4, 0.95], [305, 2, 4, 1.0], [8649, 2, 4, 2.46], [2775, 2, 4, 1.0], [8853, 2, 5, 0.94], [361, 2, 4, 0.4], [2776, 2, 4, 0.82], [593, 2, 4, 0.52], [143, 2, 4, 0.51], [140, 2, 4, 0.47], [1429, 2, 4, 0.59], [206, 2, 4, 0.57], [523, 2, 4, 0.54], [5493, 2, 4, 0.53], [7036, 1, 4, 1.42], [413, 1, 4, 0.66], [7004, 1, 4, 0.39], [5491, 2, 4, 0.5], [412, 1, 4, 0.57], [21793, 1, 4, 1.14], [12350, 1, 4, 0.53], [1124, 2, 4, 0.79], [151, 1, 4, 0.37], [990, 2, 4, 0.78], [12353, 1, 4, 0.55], [5165, 1, 4, 1.2], [8915, 2, 5, 0.94], [615, 2, 4, 0.49], [417, 2, 4, 0.55], [583, 2, 4, 0.47], [248, 1, 4, 0.46], [201, 3, 4, 0.92], [142, 2, 4, 0.56], [6097, 80, 4, 1.88], [6952, 1, 4, 1.54], [434, 2, 4, 0.62], [11770, 1, 4, 0.53], [9372, 1, 4, 1.96], [345, 3, 4, 0.92], [11234, 2, 4, 0.63], [616, 2, 4, 0.36], [3670, 2, 4, 1.47], [7005, 1, 4, 0.47], [3893, 1, 4, 0.46], [5165, 2, 7, 1.19], [12346, 1, 4, 0.53], [998, 2, 4, 1.23], [2912, 1, 4, 1.92], [7084, 3, 4, 2.17], [12870, 1, 4, 1.18], [10574, 3, 5, 1.09], [12343, 1, 4, 0.49], [2424, 80, 4, 1.11], [1886, 2, 4, 0.56], [346, 3, 4, 0.43], [3334, 5, 4, 0.99], [20927, 1, 4, 0.36], [12351, 1, 4, 0.38], [6097, 29, 4, 1.91], [6098, 80, 4, 0.89], [12345, 1, 4, 0.47], [22316, 3, 4, 0.46], [147, 1, 4, 1.44], [11772, 1, 4, 0.5], [10149, 3, 15, 1.08], [20256, 2, 4, 0.37], [432, 3, 4, 0.62], [11491, 2, 4, 0.49], [2912, 2, 5, 1.92], [1492, 1, 4, 0.38], [11952, 1, 4, 0.47], [20252, 2, 4, 0.55], [1519, 3, 10, 0.4], [418, 2, 4, 0.48], [2423, 80, 4, 1.97], [4032, 29, 4, 0.52], [411, 2, 4, 0.54], [5151, 2, 4, 0.55], [229, 1, 4, 2.07], [972, 3, 4, 1.01], [12304, 1, 4, 0.96], [3576, 25, 4, 0.48], [346, 1, 4, 0.43], [2331, 1, 4, 1.04], [13034, 3, 4, 1.31], [416, 1, 4, 0.49], [13244, 1, 4, 0.36], [3, 2, 4, 0.41], [2424, 29, 4, 1.11], [11426, 25, 4, 0.59], [11737, 2, 4, 0.44], [5076, 1, 4, 0.42], [2805, 137, 4, 1.13], [439, 1, 4, 1.47], [11490, 1, 4, 0.6], [11583, 29, 4, 0.46], [414, 1, 4, 0.66], [1413, 15, 4, 0.56], [6494, 1, 4, 0.42], [950, 1, 4, 0.36], [410, 1, 4, 0.43], [3575, 25, 4, 0.55], [12764, 2, 5, 0.68], [13280, 1, 4, 1.89], [75, 2, 4, 0.37], [3478, 2, 4, 0.52], [1701, 2, 4, 0.69], [11180, 1, 4, 0.62], [11813, 1, 4, 1.29], [4253, 1, 4, 0.89], [8677, 3, 5, 1.21], [13023, 3, 5, 1.01], [11586, 1, 7, 0.37], [9784, 1, 4, 0.88], [9998, 80, 4, 1.18], [1309, 1, 4, 1.37], [12526, 2, 4, 0.98], [2438, 2, 5, 1.21], [4033, 29, 4, 0.46], [6098, 29, 4, 0.89], [6935, 2, 237, 4.77], [141, 2, 134, 2.51], [589, 2, 132, 2.17], [2778, 2, 133, 3.25], [6936, 2, 237, 5.31], [8648, 2, 190, 5.47], [362, 2, 121, 2.45], [11681, 2, 231, 5.09], [8650, 2, 190, 5.24], [326, 2, 78, 2.74], [205, 2, 93, 2.27], [2328, 2, 129, 3.01], [1446, 2, 131, 2.34], [130, 1, 30, 3.49], [305, 2, 126, 3.26], [8649, 2, 190, 5.94], [2775, 2, 133, 3.25], [8853, 2, 237, 5.44], [361, 2, 133, 2.53], [2776, 2, 133, 3.66], [593, 2, 196, 2.38], [143, 2, 127, 2.68], [140, 2, 78, 2.28], [1429, 2, 131, 2.49], [206, 2, 93, 2.46], [523, 2, 133, 2.41], [5493, 2, 93, 2.4], [7036, 1, 110, 4.13], [413, 1, 74, 2.79], [7004, 1, 55, 2.05], [5491, 2, 93, 2.34], [412, 1, 72, 2.67], [21793, 1, 204, 3.85], [12350, 1, 535, 2.4], [1124, 2, 160, 2.88], [151, 1, 57, 2.1], [990, 2, 45, 2.86], [12353, 1, 535, 2.45], [5165, 1, 41, 3.79], [8915, 2, 162, 4.15], [615, 2, 93, 2.32], [417, 2, 133, 2.43], [583, 2, 78, 2.74], [248, 1, 47, 2.27], [201, 3, 257, 4.48], [142, 2, 133, 2.44], [6097, 80, 57, 4.88], [6952, 1, 162, 4.46], [434, 2, 92, 2.65], [11770, 1, 187, 2.38], [9372, 1, 196, 5.26], [345, 3, 257, 3.1], [11234, 2, 158, 2.68], [616, 2, 93, 2.09], [3670, 2, 212, 4.13], [7005, 1, 41, 2.05], [3893, 1, 107, 2.26], [5165, 2, 327, 3.78], [12346, 1, 535, 2.4], [998, 2, 206, 3.68], [2912, 1, 41, 5.19], [7084, 3, 109, 5.41], [12870, 1, 118, 3.63], [10574, 3, 435, 3.31], [12343, 1, 535, 2.32], [2424, 80, 140, 5.19], [1886, 2, 134, 2.44]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 5, 1.34], [2778, 2, 4, 0.58], [615, 2, 4, 0.87], [305, 2, 4, 0.51], [130, 1, 4, 0.65], [6936, 2, 4, 1.35], [616, 2, 4, 0.61], [205, 2, 4, 0.51], [1504, 2, 4, 0.49], [8648, 2, 4, 0.96], [144, 2, 4, 0.47], [2049, 3, 7, 0.42], [88, 10, 8, 0.43], [7036, 1, 4, 0.43], [326, 2, 4, 0.7], [8650, 2, 4, 0.96], [589, 2, 5, 0.36], [593, 2, 4, 0.52], [2327, 2, 4, 0.54], [3893, 1, 4, 0.45], [11681, 2, 4, 1.37], [8853, 2, 4, 1.2], [2775, 2, 4, 0.58], [141, 2, 4, 0.53], [206, 2, 4, 0.44], [151, 1, 4, 0.4], [7004, 1, 4, 1.21], [9507, 3, 4, 0.36], [11685, 2, 4, 1.37], [3840, 1, 4, 0.39], [3891, 1, 4, 0.75], [10, 2, 4, 0.45], [2328, 2, 4, 0.51], [159, 3, 5, 0.75], [146, 2, 4, 0.57], [2050, 3, 4, 1.69], [2497, 2, 4, 0.6], [5491, 2, 4, 0.59], [2055, 3, 4, 1.73], [434, 2, 4, 0.41], [143, 2, 4, 0.51], [3980, 4, 4, 1.2], [624, 2, 4, 0.81], [2054, 3, 4, 1.86], [990, 2, 4, 0.36], [12349, 1, 4, 3.67], [8649, 2, 4, 1.34], [8672, 2, 4, 0.73], [362, 2, 4, 0.5], [12870, 1, 4, 0.92], [2776, 2, 4, 1.01], [2057, 3, 4, 1.78], [8938, 2, 4, 0.46], [12350, 1, 4, 1.27], [12353, 1, 4, 3.59], [10574, 3, 5, 1.36], [7886, 4, 4, 0.4], [5165, 1, 4, 1.47], [10993, 2, 4, 0.41], [145, 2, 4, 0.48], [1006, 2, 4, 0.78], [1446, 2, 4, 1.11], [523, 2, 4, 0.53], [94, 4, 4, 2.04], [7084, 3, 4, 0.78], [2991, 3, 4, 1.1], [3975, 4, 4, 1.26], [12346, 1, 4, 1.42], [21793, 1, 4, 1.13], [142, 2, 4, 0.52], [11404, 2, 4, 0.39], [9760, 29, 4, 0.47], [20927, 1, 4, 0.67], [6158, 2, 4, 0.68], [5165, 2, 5, 1.48], [3981, 3, 13, 1.15], [417, 2, 4, 0.55], [2912, 1, 4, 1.26], [8939, 2, 4, 0.47], [1007, 2, 4, 0.7], [3982, 3, 10, 1.18], [2774, 2, 4, 0.83], [997, 2, 4, 1.18], [33, 1, 4, 1.33], [11772, 1, 4, 1.09], [956, 2, 4, 0.44], [286, 3, 4, 2.38], [7887, 4, 4, 0.95], [12344, 1, 4, 1.44], [6497, 1, 4, 1.31], [1492, 1, 4, 0.96], [12352, 1, 4, 1.29], [12345, 1, 4, 1.27], [8120, 3, 4, 0.65], [950, 1, 4, 0.37], [998, 2, 4, 1.17], [972, 3, 4, 1.51], [11767, 1, 4, 0.54], [12351, 1, 4, 0.84], [996, 2, 4, 1.47], [11769, 1, 4, 0.96], [11770, 1, 4, 0.46], [11490, 1, 4, 0.53], [2912, 2, 5, 1.27], [432, 3, 4, 0.47], [74, 1, 4, 0.62], [6496, 1, 4, 0.75], [410, 1, 4, 0.9], [411, 2, 4, 0.65], [389, 4, 4, 0.88], [35, 1, 4, 1.33], [7567, 3, 4, 1.47], [4253, 1, 4, 0.82], [140, 2, 4, 0.7], [22317, 3, 4, 0.51], [8673, 2, 4, 0.47], [2336, 3, 5, 0.4], [4176, 4, 4, 1.31], [8121, 3, 4, 0.47], [9372, 1, 4, 0.39], [2436, 4, 4, 0.78], [21269, 3, 4, 2.49], [10388, 2, 4, 1.14], [10936, 2, 4, 1.7], [8676, 2, 4, 0.83], [22247, 2, 4, 1.14], [12343, 1, 4, 3.18], [11085, 2, 4, 1.27], [8677, 3, 4, 0.9], [12269, 2, 4, 1.03], [9784, 1, 4, 0.52], [12526, 2, 4, 1.08], [12225, 1, 4, 1.2], [6935, 2, 244, 4.26], [2778, 2, 135, 2.51], [615, 2, 94, 3.05], [305, 2, 127, 2.38], [130, 1, 30, 3.14], [6936, 2, 244, 4.64], [616, 2, 94, 2.58], [205, 2, 94, 2.38], [1504, 2, 175, 2.34], [8648, 2, 193, 4.15], [144, 2, 130, 2.31], [2049, 3, 477, 2.32], [88, 10, 498, 2.29], [7036, 1, 109, 3.72], [326, 2, 63, 3.3], [8650, 2, 193, 3.92], [589, 2, 132, 2.05], [593, 2, 196, 2.67], [2327, 2, 130, 2.43], [3893, 1, 108, 2.62], [11681, 2, 235, 4.79], [8853, 2, 244, 3.82], [2775, 2, 135, 2.51], [141, 2, 134, 3.03], [206, 2, 94, 2.27], [151, 1, 57, 2.64], [7004, 1, 68, 3.67], [9507, 3, 69, 1.56], [11685, 2, 235, 4.8], [3840, 1, 150, 2.17], [3891, 1, 108, 2.82], [10, 2, 90, 2.27], [2328, 2, 130, 2.39], [159, 3, 609, 2.75], [146, 2, 130, 2.49], [2050, 3, 395, 4.77], [2497, 2, 175, 2.55], [5491, 2, 93, 2.53], [2055, 3, 395, 4.86], [434, 2, 56, 1.96], [143, 2, 128, 2.39], [3980, 4, 415, 3.8], [624, 2, 94, 2.93], [2054, 3, 395, 5.11], [990, 2, 45, 2.1], [12349, 1, 519, 6], [8649, 2, 193, 3.91], [8672, 2, 246, 4.13], [362, 2, 122, 2.36], [12870, 1, 117, 5.16], [2776, 2, 135, 3.31], [2057, 3, 395, 4.97], [8938, 2, 67, 2.22], [12350, 1, 519, 3.98], [12353, 1, 519, 6], [10574, 3, 436, 3.81], [7886, 4, 50, 1.63], [5165, 1, 41, 4.34], [10993, 2, 47, 2.2], [145, 2, 130, 2.33], [1006, 2, 196, 3.02], [1446, 2, 131, 3.49], [523, 2, 133, 2.5], [94, 4, 103, 5.53], [7084, 3, 112, 2.88], [2991, 3, 140, 5.75], [3975, 4, 415, 3.93]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 7, 1.47], [305, 2, 4, 0.48], [130, 1, 4, 0.45], [2328, 2, 4, 0.51], [141, 2, 4, 0.48], [2778, 2, 5, 0.51], [8650, 2, 4, 0.96], [5491, 2, 4, 0.64], [2327, 2, 4, 0.51], [8672, 2, 5, 0.49], [6936, 2, 4, 1.26], [362, 2, 4, 1.09], [143, 2, 4, 0.51], [11681, 2, 5, 1.41], [145, 2, 4, 0.5], [205, 2, 4, 0.37], [5493, 2, 4, 0.85], [146, 2, 4, 0.57], [589, 2, 4, 0.4], [75, 2, 4, 0.97], [11838, 2, 4, 0.56], [523, 2, 4, 0.66], [8648, 2, 4, 0.58], [2049, 3, 8, 0.47], [1124, 2, 5, 0.82], [1005, 2, 4, 0.39], [8853, 2, 4, 1.46], [12721, 2, 5, 0.48], [615, 2, 4, 1.01], [206, 2, 4, 0.37], [326, 2, 4, 0.85], [8915, 2, 4, 0.89], [8673, 2, 4, 0.62], [144, 2, 4, 0.46], [8675, 2, 5, 0.98], [990, 2, 4, 0.9], [434, 2, 4, 0.55], [11739, 2, 4, 1.89], [88, 10, 8, 0.48], [2776, 2, 4, 1.28], [142, 2, 4, 0.57], [435, 2, 4, 0.53], [151, 1, 4, 0.51], [8676, 2, 4, 0.7], [6158, 2, 5, 0.67], [2424, 29, 4, 1.0], [8649, 2, 4, 0.96], [2423, 29, 4, 2.26], [11738, 2, 4, 1.78], [2497, 2, 4, 0.36], [2424, 80, 4, 0.97], [7704, 2, 4, 1.15], [1413, 15, 4, 0.54], [3670, 2, 4, 1.92], [10574, 3, 5, 1.26], [2423, 80, 4, 2.26], [3, 2, 4, 1.04], [7705, 2, 4, 1.15], [2859, 15, 4, 0.87], [11836, 2, 4, 0.47], [378, 2, 4, 1.73], [12720, 2, 4, 0.48], [412, 1, 4, 0.57], [7706, 2, 4, 1.15], [22316, 3, 4, 0.46], [2055, 3, 4, 0.46], [10149, 3, 13, 1.17], [74, 1, 4, 1.69], [3478, 2, 4, 1.28], [1414, 15, 4, 0.5], [2774, 2, 4, 0.52], [6497, 1, 4, 0.46], [307, 2, 4, 0.87], [60, 3, 5, 1.19], [12526, 2, 4, 1.1], [411, 2, 4, 0.37], [11089, 1, 4, 0.41], [418, 2, 4, 0.59], [346, 3, 5, 0.43], [7004, 1, 4, 0.56], [1409, 15, 4, 0.47], [413, 1, 4, 1.79], [7036, 1, 4, 0.43], [13034, 3, 5, 1.09], [14037, 3, 4, 0.46], [3893, 1, 4, 2.08], [20252, 2, 4, 0.37], [159, 3, 5, 0.72], [11844, 2, 4, 0.42], [8274, 3, 4, 0.58], [439, 1, 4, 0.53], [7084, 3, 4, 0.36], [13260, 29, 4, 0.67], [6097, 80, 4, 3.8], [6952, 1, 4, 1.09], [18964, 1, 4, 0.36], [9784, 1, 4, 0.74], [1050, 2, 4, 0.36], [7707, 2, 4, 0.72], [94, 4, 4, 1.77], [1490, 1, 4, 0.91], [11490, 1, 4, 0.55], [22317, 3, 5, 0.51], [1492, 1, 4, 0.65], [1413, 16, 4, 0.54], [3889, 1, 4, 2.08], [7708, 2, 4, 1.15], [1243, 2, 4, 0.45], [3495, 3, 10, 0.98], [565, 2, 4, 0.46], [414, 1, 4, 1.79], [7703, 2, 4, 1.15], [11491, 2, 4, 0.73], [21793, 1, 4, 1.44], [410, 1, 4, 0.48], [22558, 3, 4, 0.41], [2422, 80, 4, 0.61], [6098, 80, 4, 2.21], [149, 2, 4, 0.52], [2805, 137, 5, 1.55], [6630, 3, 4, 1.9], [11504, 2, 4, 0.62], [3674, 2, 4, 0.54], [147, 1, 4, 0.52], [247, 1, 4, 0.46], [2331, 1, 4, 0.9], [3430, 15, 4, 1.08], [13023, 3, 6, 0.57], [345, 3, 4, 0.76], [416, 1, 4, 1.59], [6098, 29, 4, 2.21], [23275, 2, 4, 0.39], [11671, 1, 4, 1.1], [6935, 2, 281, 5.97], [305, 2, 146, 2.67], [130, 1, 20, 2.93], [2328, 2, 150, 3.64], [141, 2, 156, 2.66], [2778, 2, 156, 2.96], [8650, 2, 225, 4.1], [5491, 2, 108, 2.97], [2327, 2, 150, 3.61], [8672, 2, 286, 4.22], [6936, 2, 281, 4.75], [362, 2, 141, 3.78], [143, 2, 148, 2.72], [11681, 2, 275, 5.7], [145, 2, 151, 2.71], [205, 2, 109, 2.53], [5493, 2, 108, 3.34], [146, 2, 151, 2.82], [589, 2, 103, 2.34], [75, 2, 145, 3.57], [11838, 2, 267, 2.8], [523, 2, 156, 3.01], [8648, 2, 225, 4.31], [2049, 3, 367, 2.78], [1124, 2, 186, 3.52], [1005, 2, 37, 1.79], [8853, 2, 281, 4.66], [12721, 2, 283, 3.24], [615, 2, 107, 3.91], [206, 2, 109, 2.53], [326, 2, 45, 3.51], [8915, 2, 63, 4.45], [8673, 2, 288, 4.48], [144, 2, 151, 2.63], [8675, 2, 286, 3.63], [990, 2, 17, 2.72], [434, 2, 107, 3.07], [11739, 2, 19, 4.55], [88, 10, 561, 4.29], [2776, 2, 156, 4.13], [142, 2, 156, 2.83], [435, 2, 107, 2.76], [151, 1, 33, 2.73], [8676, 2, 286, 3.07], [6158, 2, 261, 3.79], [2424, 29, 33, 5.62], [8649, 2, 225, 4.31], [2423, 29, 36, 5.93], [11738, 2, 28, 4.69], [2497, 2, 204, 2.44], [2424, 80, 163, 5.6], [7704, 2, 175, 4.06], [1413, 15, 99, 2.77], [3670, 2, 235, 6], [10574, 3, 499, 4.27], [2423, 80, 180, 5.93], [3, 2, 120, 3.73], [7705, 2, 175, 4.06], [2859, 15, 69, 3.38], [11836, 2, 267, 2.64], [378, 2, 225, 4.95], [12720, 2, 283, 3.24], [412, 1, 83, 3.77], [7706, 2, 175, 4.06], [22316, 3, 317, 2.64], [2055, 3, 241, 2.27], [10149, 3, 881, 4.12]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 6, 0.73], [305, 2, 4, 0.75], [326, 2, 4, 0.54], [3, 2, 4, 0.47], [205, 2, 4, 0.37], [6935, 2, 8, 1.27], [130, 1, 4, 0.55], [143, 2, 4, 0.58], [75, 2, 4, 0.87], [144, 2, 4, 0.49], [12721, 2, 6, 0.72], [593, 2, 5, 0.35], [145, 2, 4, 0.52], [8915, 2, 5, 0.41], [2778, 2, 4, 0.58], [1776, 1, 4, 0.61], [146, 2, 4, 0.52], [206, 2, 4, 0.37], [6936, 2, 5, 1.17], [8648, 2, 4, 1.52], [151, 1, 4, 0.37], [2328, 2, 4, 0.39], [8650, 2, 4, 1.9], [5151, 2, 4, 1.02], [248, 1, 4, 0.37], [2050, 3, 4, 0.9], [88, 10, 8, 0.95], [7886, 4, 4, 0.45], [74, 1, 4, 1.53], [1446, 2, 4, 0.4], [362, 2, 4, 0.48], [7004, 1, 4, 0.37], [2057, 3, 4, 0.47], [2991, 3, 4, 2.05], [1007, 2, 5, 0.39], [2055, 3, 4, 0.42], [147, 1, 4, 1.27], [8649, 2, 4, 1.9], [3889, 1, 4, 0.44], [11234, 2, 5, 0.63], [10, 2, 4, 0.8], [7005, 1, 4, 0.38], [1429, 2, 4, 0.39], [345, 3, 4, 0.57], [307, 2, 4, 0.58], [12870, 1, 4, 2.33], [5081, 2, 4, 0.69], [10825, 21, 8, 1.28], [7036, 1, 4, 0.43], [57, 1, 4, 0.43], [1504, 2, 4, 0.55], [3478, 2, 4, 1.03], [1006, 2, 4, 0.59], [10149, 3, 13, 0.98], [7084, 3, 4, 1.53], [3891, 1, 4, 0.77], [21793, 1, 4, 1.39], [167, 3, 4, 1.15], [94, 4, 4, 0.4], [411, 2, 4, 0.37], [308, 1, 4, 2.44], [9827, 3, 4, 0.48], [3893, 1, 4, 0.43], [79, 1, 4, 0.36], [432, 3, 4, 0.62], [23, 1, 4, 0.67], [8677, 3, 5, 0.65], [11681, 2, 5, 1.91], [33, 1, 4, 1.33], [12225, 1, 4, 0.43], [96, 11, 15, 0.38], [1490, 1, 4, 0.37], [148, 1, 4, 1.33], [11737, 2, 4, 0.44], [1124, 2, 4, 0.51], [6158, 2, 5, 0.51], [1243, 2, 4, 0.56], [8853, 2, 5, 1.32], [9760, 29, 4, 0.74], [412, 1, 4, 0.64], [5812, 3, 5, 0.8], [10574, 3, 5, 1.33], [2336, 3, 5, 0.99], [22247, 2, 6, 1.15], [20256, 2, 4, 0.52], [20927, 1, 4, 0.49], [8651, 2, 4, 0.38], [229, 1, 4, 2.07], [35, 1, 4, 1.33], [5208, 3, 5, 0.54], [201, 3, 4, 0.57], [45, 2, 4, 0.64], [1767, 25, 4, 0.59], [25, 1, 4, 0.76], [8676, 2, 6, 0.89], [159, 3, 5, 1.17], [9069, 1, 4, 1.04], [11490, 1, 4, 0.43], [413, 1, 4, 0.57], [3495, 3, 13, 1.31], [998, 2, 4, 2.02], [95, 3, 10, 0.54], [140, 2, 4, 0.54], [950, 1, 4, 0.41], [149, 2, 4, 1.33], [5946, 1, 4, 0.53], [3980, 4, 4, 1.25], [9372, 1, 4, 0.42], [1126, 2, 4, 0.5], [1766, 25, 4, 0.56], [2775, 2, 4, 0.58], [11489, 1, 4, 0.65], [490, 1, 4, 0.53], [1413, 15, 4, 0.5], [3670, 2, 4, 1.86], [20255, 2, 4, 0.52], [1070, 7, 9, 0.46], [8898, 3, 4, 0.75], [107, 2, 4, 1.17], [974, 3, 4, 0.88], [9691, 1, 4, 0.77], [20498, 1, 4, 0.98], [11954, 1, 4, 0.47], [8674, 2, 4, 0.73], [14037, 3, 4, 0.44], [823, 1, 4, 0.5], [1519, 3, 11, 0.46], [12353, 1, 4, 3.09], [11739, 2, 4, 0.44], [9784, 1, 4, 0.6], [14017, 3, 4, 1.04], [972, 3, 5, 0.65], [5209, 3, 4, 0.54], [8672, 2, 242, 3.98], [305, 2, 125, 2.8], [326, 2, 77, 2.94], [3, 2, 104, 2.17], [205, 2, 93, 1.99], [6935, 2, 242, 4.31], [130, 1, 38, 3.12], [143, 2, 126, 2.36], [75, 2, 125, 2.91], [144, 2, 128, 2.21], [12721, 2, 240, 3.0], [593, 2, 194, 2.05], [145, 2, 128, 2.26], [8915, 2, 164, 2.16], [2778, 2, 133, 2.37], [1776, 1, 94, 2.44], [146, 2, 128, 2.27], [206, 2, 93, 1.99], [6936, 2, 242, 3.78], [8648, 2, 189, 4.84], [151, 1, 57, 1.98], [2328, 2, 128, 2.85], [8650, 2, 189, 5.13], [5151, 2, 20, 3.18], [248, 1, 46, 1.99], [2050, 3, 203, 2.91], [88, 10, 474, 4.67], [7886, 4, 122, 2.14], [74, 1, 169, 4.84], [1446, 2, 130, 2.74], [362, 2, 121, 2.2], [7004, 1, 68, 1.99], [2057, 3, 407, 2.17], [2991, 3, 136, 5.48], [1007, 2, 231, 2.12], [2055, 3, 407, 2.09], [147, 1, 75, 3.81], [8649, 2, 189, 5.22], [3889, 1, 106, 2.11], [11234, 2, 157, 2.57], [10, 2, 44, 4.7], [7005, 1, 68, 2.0], [1429, 2, 130, 2.38], [345, 3, 257, 2.35], [307, 2, 126, 2.37], [12870, 1, 116, 5.58], [5081, 2, 161, 2.57], [10825, 21, 530, 3.51], [7036, 1, 108, 3.05], [57, 1, 73, 2.09], [1504, 2, 174, 2.31], [3478, 2, 64, 3.44], [1006, 2, 194, 2.4], [10149, 3, 760, 2.99], [7084, 3, 109, 4.12], [3891, 1, 106, 3.43], [21793, 1, 198, 5.88], [167, 3, 192, 3.58], [94, 4, 102, 3.41], [411, 2, 93, 1.99], [308, 1, 143, 5.79], [9827, 3, 74, 2.19], [3893, 1, 106, 3.43], [79, 1, 41, 1.97], [432, 3, 259, 2.45], [23, 1, 95, 2.54], [8677, 3, 251, 2.57]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 6, 0.97], [305, 2, 4, 0.75], [6935, 2, 8, 1.27], [326, 2, 4, 0.47], [141, 2, 4, 0.39], [144, 2, 4, 0.55], [151, 1, 4, 0.46], [362, 2, 4, 0.54], [12721, 2, 6, 0.96], [593, 2, 5, 0.35], [146, 2, 4, 0.58], [145, 2, 4, 0.44], [2328, 2, 4, 0.55], [206, 2, 4, 0.39], [8648, 2, 4, 0.77], [8915, 2, 5, 0.37], [143, 2, 4, 0.58], [6936, 2, 5, 1.17], [990, 2, 4, 0.62], [20252, 2, 4, 0.5], [8650, 2, 4, 1.15], [5151, 2, 4, 0.55], [1007, 2, 5, 0.39], [2778, 2, 4, 0.58], [248, 1, 4, 0.39], [88, 10, 8, 1.13], [2050, 3, 4, 0.76], [76, 2, 4, 1.11], [8649, 2, 4, 1.15], [22247, 2, 4, 1.26], [10149, 3, 15, 1.32], [10, 2, 4, 0.97], [2054, 3, 4, 0.57], [8677, 3, 5, 1.56], [412, 1, 4, 0.91], [2055, 3, 4, 0.65], [361, 2, 4, 0.42], [13028, 3, 4, 0.5], [7004, 1, 4, 0.4], [413, 1, 4, 0.35], [411, 2, 4, 0.48], [10825, 21, 8, 0.37], [8938, 2, 5, 0.37], [11681, 2, 5, 2.33], [1446, 2, 4, 0.53], [307, 2, 4, 0.58], [7084, 3, 4, 0.88], [3478, 2, 4, 1.28], [1429, 2, 4, 0.54], [3495, 3, 13, 1.31], [1006, 2, 4, 0.59], [74, 1, 4, 0.84], [5081, 2, 4, 0.54], [140, 2, 4, 0.47], [308, 1, 4, 2.44], [1492, 1, 4, 0.38], [7036, 1, 4, 0.54], [7005, 1, 4, 0.4], [167, 3, 4, 1.35], [45, 2, 4, 1.12], [10574, 3, 5, 0.37], [9827, 3, 4, 0.48], [1124, 2, 5, 0.74], [12870, 1, 4, 2.33], [8676, 2, 4, 0.49], [168, 3, 4, 0.79], [94, 4, 4, 0.51], [1504, 2, 4, 0.45], [11234, 2, 4, 0.63], [415, 1, 4, 0.73], [8651, 2, 4, 1.22], [148, 1, 4, 0.45], [8853, 2, 5, 1.32], [432, 3, 4, 0.62], [6097, 29, 4, 1.86], [416, 1, 4, 0.73], [23, 1, 4, 0.48], [6097, 80, 4, 1.86], [20256, 2, 4, 0.35], [490, 1, 4, 0.51], [95, 3, 13, 0.54], [5208, 3, 5, 0.39], [3980, 4, 4, 1.25], [6098, 29, 4, 2.02], [14017, 3, 4, 0.67], [6098, 80, 4, 2.02], [414, 1, 4, 0.35], [1070, 7, 8, 0.43], [9069, 1, 4, 1.09], [8898, 3, 4, 2.17], [1126, 2, 4, 0.5], [126, 2, 4, 0.47], [22554, 10, 9, 0.48], [13034, 3, 5, 1.26], [9829, 3, 4, 0.41], [20255, 2, 4, 0.39], [20498, 1, 4, 1.05], [159, 3, 5, 0.63], [5086, 1, 4, 1.08], [5513, 2, 4, 0.48], [9784, 1, 4, 0.74], [12924, 1, 4, 0.56], [7567, 3, 4, 1.12], [22317, 3, 5, 0.51], [229, 1, 4, 2.07], [13260, 29, 4, 0.42], [1413, 15, 4, 0.45], [5811, 3, 4, 1.18], [11085, 2, 4, 0.45], [8557, 3, 4, 0.83], [5813, 3, 4, 1.08], [9082, 3, 15, 0.68], [14018, 3, 4, 0.5], [3049, 3, 4, 1.48], [9372, 1, 4, 0.39], [20498, 3, 5, 1.1], [9691, 1, 4, 0.91], [4076, 3, 4, 2.19], [506, 1, 4, 0.45], [524, 1, 4, 0.91], [470, 1, 4, 0.53], [8943, 3, 4, 0.86], [2423, 80, 4, 1.96], [11454, 2, 5, 1.47], [20486, 3, 5, 1.01], [2775, 2, 4, 0.58], [13023, 3, 5, 1.24], [1622, 1, 5, 0.35], [5584, 3, 4, 0.5], [2424, 80, 4, 2.45], [11768, 1, 4, 0.47], [3900, 3, 4, 1.18], [20486, 1, 4, 1.01], [8672, 2, 262, 4.07], [305, 2, 135, 2.64], [6935, 2, 262, 4.33], [326, 2, 84, 2.13], [141, 2, 144, 1.87], [144, 2, 139, 2.16], [151, 1, 62, 1.99], [362, 2, 131, 2.14], [12721, 2, 260, 3.08], [593, 2, 211, 1.96], [146, 2, 139, 2.22], [145, 2, 139, 1.96], [2328, 2, 139, 2.16], [206, 2, 101, 1.86], [8648, 2, 207, 3.67], [8915, 2, 178, 1.85], [143, 2, 137, 2.21], [6936, 2, 262, 3.62], [990, 2, 48, 2.31], [20252, 2, 86, 2.06], [8650, 2, 207, 4.31], [5151, 2, 22, 2.15], [1007, 2, 250, 1.96], [2778, 2, 144, 2.21], [248, 1, 51, 1.86], [88, 10, 520, 3.4], [2050, 3, 438, 2.54], [76, 2, 100, 3.44], [8649, 2, 207, 4.01], [22247, 2, 260, 4.13], [10149, 3, 795, 4.41], [10, 2, 73, 4.08], [2054, 3, 328, 3.85], [8677, 3, 271, 4.23], [412, 1, 77, 2.82], [2055, 3, 328, 3.85], [361, 2, 143, 3.37], [13028, 3, 136, 2.08], [7004, 1, 74, 1.88], [413, 1, 79, 1.89], [411, 2, 101, 2.03], [10825, 21, 594, 1.82], [8938, 2, 134, 1.65], [11681, 2, 251, 6], [1446, 2, 141, 2.71], [307, 2, 137, 2.22], [7084, 3, 119, 3.37], [3478, 2, 69, 3.51], [1429, 2, 141, 2.14], [3495, 3, 886, 3.41], [1006, 2, 211, 2.25], [74, 1, 182, 3.67], [5081, 2, 176, 2.15], [140, 2, 84, 2.01], [308, 1, 155, 5.64], [1492, 1, 34, 1.85], [7036, 1, 117, 3.63], [7005, 1, 74, 1.88], [167, 3, 209, 3.64], [45, 2, 100, 4.82], [10574, 3, 360, 1.74], [9827, 3, 81, 2.04], [1124, 2, 171, 2.9], [12870, 1, 126, 5.43], [8676, 2, 262, 3.7], [168, 3, 377, 2.62], [94, 4, 110, 3.69]]</t>
+  </si>
+  <si>
+    <t>[[11685, 2, 4, 1.37], [6935, 2, 5, 1.34], [326, 2, 4, 0.7], [130, 1, 4, 0.65], [8648, 2, 4, 0.96], [144, 2, 4, 0.47], [593, 2, 4, 0.52], [2327, 2, 4, 0.54], [589, 2, 5, 0.36], [143, 2, 4, 0.51], [205, 2, 4, 0.51], [2328, 2, 4, 0.51], [6936, 2, 4, 1.35], [11681, 2, 4, 1.37], [8650, 2, 4, 0.96], [5493, 2, 4, 0.82], [305, 2, 4, 0.51], [2778, 2, 4, 0.58], [206, 2, 4, 0.44], [141, 2, 4, 0.53], [146, 2, 4, 0.57], [2049, 3, 7, 0.42], [88, 10, 8, 0.43], [7004, 1, 4, 1.21], [615, 2, 4, 0.87], [145, 2, 4, 0.48], [7036, 1, 4, 0.43], [9507, 3, 4, 0.36], [8853, 2, 4, 1.2], [8649, 2, 4, 1.34], [1446, 2, 4, 1.11], [5491, 2, 4, 0.59], [362, 2, 4, 0.5], [434, 2, 4, 0.41], [1006, 2, 4, 0.78], [11737, 2, 4, 0.69], [2055, 3, 4, 1.73], [8938, 2, 4, 0.46], [990, 2, 4, 0.36], [12350, 1, 4, 1.27], [616, 2, 4, 0.61], [2050, 3, 4, 1.69], [417, 2, 4, 0.55], [3840, 1, 4, 0.39], [1007, 2, 4, 0.7], [523, 2, 4, 0.53], [159, 3, 5, 0.75], [12870, 1, 4, 0.92], [13028, 3, 4, 0.5], [12353, 1, 4, 3.59], [1504, 2, 4, 0.49], [2057, 3, 4, 1.78], [20927, 1, 4, 0.67], [10574, 3, 5, 1.36], [3, 2, 4, 0.38], [12349, 1, 4, 3.67], [7005, 1, 4, 0.94], [142, 2, 4, 0.52], [12346, 1, 4, 1.42], [7084, 3, 4, 0.78], [624, 2, 4, 0.81], [2991, 3, 4, 1.1], [10, 2, 4, 0.45], [9760, 29, 4, 0.47], [140, 2, 4, 0.7], [2054, 3, 4, 1.86], [21798, 1, 4, 0.71], [2775, 2, 4, 0.58], [8939, 2, 4, 0.47], [3982, 3, 10, 1.18], [21793, 1, 4, 1.13], [1429, 2, 4, 0.5], [96, 11, 13, 0.38], [6158, 2, 4, 0.68], [12269, 2, 4, 1.03], [9372, 1, 4, 0.39], [5165, 2, 5, 1.48], [12352, 1, 4, 1.29], [84, 2, 4, 0.9], [1126, 2, 4, 0.78], [10388, 2, 4, 1.14], [972, 3, 4, 1.51], [411, 2, 4, 0.65], [98, 11, 10, 0.54], [5165, 1, 4, 1.47], [2912, 1, 4, 1.26], [8898, 3, 4, 3.1], [2776, 2, 4, 1.01], [8672, 2, 4, 0.73], [413, 1, 4, 1.24], [12344, 1, 4, 1.44], [410, 1, 4, 0.9], [12351, 1, 4, 0.84], [12343, 1, 4, 3.18], [10386, 2, 4, 1.01], [13928, 1, 4, 0.47], [418, 2, 4, 0.5], [1492, 1, 4, 0.96], [12345, 1, 4, 1.27], [9784, 1, 4, 0.52], [412, 1, 4, 0.5], [11490, 1, 4, 0.53], [8677, 3, 4, 0.9], [2912, 2, 5, 1.27], [308, 1, 4, 0.95], [307, 2, 4, 0.5], [7567, 3, 4, 1.47], [159, 1, 4, 0.64], [13283, 1, 4, 2.32], [432, 3, 4, 0.47], [414, 1, 4, 0.66], [286, 3, 4, 2.38], [11770, 1, 4, 0.46], [33, 1, 4, 1.33], [5490, 2, 4, 0.45], [22317, 3, 4, 0.51], [10407, 10, 6, 0.79], [35, 1, 4, 1.33], [10410, 10, 6, 0.79], [10780, 10, 4, 1.52], [335, 3, 9, 0.37], [6497, 1, 4, 1.31], [972, 1, 4, 1.51], [10387, 2, 4, 1.04], [3478, 2, 4, 1.19], [74, 1, 4, 0.62], [9691, 1, 4, 0.39], [12347, 1, 4, 0.51], [12271, 2, 4, 1.01], [20686, 1, 4, 1.33], [2497, 2, 4, 0.6], [2331, 1, 4, 0.5], [8897, 3, 4, 3.1], [11685, 2, 235, 4.8], [6935, 2, 244, 4.26], [326, 2, 63, 3.3], [130, 1, 30, 3.14], [8648, 2, 193, 4.15], [144, 2, 130, 2.31], [593, 2, 196, 2.67], [2327, 2, 130, 2.43], [589, 2, 132, 2.05], [143, 2, 128, 2.39], [205, 2, 94, 2.38], [2328, 2, 130, 2.39], [6936, 2, 244, 4.64], [11681, 2, 235, 4.79], [8650, 2, 193, 3.92], [5493, 2, 93, 2.95], [305, 2, 127, 2.38], [2778, 2, 135, 2.51], [206, 2, 94, 2.27], [141, 2, 134, 3.03], [146, 2, 130, 2.49], [2049, 3, 477, 2.32], [88, 10, 498, 2.29], [7004, 1, 68, 3.67], [615, 2, 94, 3.05], [145, 2, 130, 2.33], [7036, 1, 109, 3.72], [9507, 3, 69, 1.56], [8853, 2, 244, 3.82], [8649, 2, 193, 3.91], [1446, 2, 131, 3.49], [5491, 2, 93, 2.53], [362, 2, 122, 2.36], [434, 2, 56, 1.96], [1006, 2, 196, 3.02], [11737, 2, 50, 2.71], [2055, 3, 395, 4.86], [8938, 2, 67, 2.22], [990, 2, 45, 2.1], [12350, 1, 519, 3.98], [616, 2, 94, 2.58], [2050, 3, 395, 4.77], [417, 2, 133, 2.45], [3840, 1, 150, 2.17], [1007, 2, 230, 2.73], [523, 2, 133, 2.5], [159, 3, 609, 2.75], [12870, 1, 117, 5.16], [13028, 3, 126, 2.57], [12353, 1, 519, 6], [1504, 2, 175, 2.34], [2057, 3, 395, 4.97], [20927, 1, 68, 3.22], [10574, 3, 436, 3.81], [3, 2, 106, 2.14], [12349, 1, 519, 6], [7005, 1, 68, 3.17], [142, 2, 133, 2.39], [12346, 1, 519, 4.23], [7084, 3, 112, 2.88], [624, 2, 94, 2.93], [2991, 3, 140, 5.75], [10, 2, 90, 2.27], [9760, 29, 62, 2.31], [140, 2, 78, 2.73], [2054, 3, 395, 5.11], [21798, 1, 120, 2.75]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 5, 0.91], [141, 2, 4, 0.48], [362, 2, 4, 0.36], [361, 2, 4, 0.59], [6935, 2, 7, 1.55], [12721, 2, 5, 1.21], [206, 2, 4, 0.47], [2049, 3, 8, 0.42], [8676, 2, 4, 0.6], [1504, 2, 5, 0.41], [8675, 2, 5, 0.73], [417, 2, 4, 0.47], [6936, 2, 4, 1.33], [3, 2, 4, 0.61], [305, 2, 4, 0.48], [523, 2, 4, 0.66], [151, 1, 4, 0.51], [22247, 2, 4, 1.0], [8650, 2, 4, 0.77], [142, 2, 4, 0.57], [8648, 2, 4, 0.38], [2328, 2, 4, 0.51], [2776, 2, 4, 0.48], [8853, 2, 4, 1.54], [616, 2, 4, 0.52], [11739, 2, 4, 1.47], [2327, 2, 4, 0.51], [411, 2, 4, 0.38], [12352, 1, 4, 1.57], [589, 2, 4, 0.37], [143, 2, 4, 0.85], [950, 1, 4, 0.37], [146, 2, 4, 0.62], [412, 1, 4, 0.78], [8674, 2, 4, 1.22], [12353, 1, 4, 1.57], [145, 2, 4, 0.49], [583, 2, 4, 0.62], [2805, 137, 5, 1.85], [6497, 1, 4, 0.46], [326, 2, 4, 0.62], [418, 2, 4, 0.46], [11738, 2, 4, 1.35], [10574, 3, 5, 1.26], [6097, 80, 4, 1.61], [9784, 1, 4, 0.85], [10149, 3, 13, 0.89], [6097, 29, 4, 1.61], [75, 2, 4, 0.49], [11234, 2, 4, 0.63], [12344, 1, 4, 0.71], [2057, 3, 4, 0.35], [1413, 15, 4, 0.51], [20252, 2, 4, 0.5], [11504, 2, 4, 0.44], [12269, 2, 4, 0.61], [2054, 3, 4, 0.5], [8915, 2, 4, 0.41], [6496, 1, 4, 0.5], [1492, 1, 4, 0.65], [247, 1, 4, 0.46], [2774, 2, 4, 0.59], [6098, 80, 4, 2.09], [12346, 1, 4, 1.57], [3429, 15, 4, 0.46], [1886, 2, 4, 0.5], [416, 1, 4, 0.95], [944, 15, 4, 0.47], [6098, 29, 4, 2.09], [2859, 15, 4, 0.71], [3934, 5, 5, 0.56], [1414, 15, 4, 0.51], [201, 3, 4, 0.51], [21793, 1, 4, 1.44], [3670, 2, 4, 1.92], [159, 3, 5, 0.72], [20555, 2, 4, 0.56], [6158, 2, 5, 0.44], [2049, 1, 4, 0.41], [3478, 2, 4, 1.28], [20686, 1, 4, 0.98], [7084, 3, 4, 1.96], [9785, 1, 4, 1.01], [12526, 2, 4, 1.1], [3430, 15, 4, 0.92], [8599, 1, 4, 0.37], [9342, 2, 5, 0.38], [2050, 3, 4, 0.35], [8938, 2, 4, 0.54], [4253, 1, 4, 0.54], [1413, 16, 4, 0.51], [1703, 2, 4, 0.75], [9760, 29, 4, 0.6], [11887, 2, 5, 0.37], [11885, 2, 4, 0.37], [107, 2, 4, 1.18], [415, 1, 4, 0.95], [11811, 1, 4, 0.38], [11770, 1, 4, 1.08], [436, 2, 4, 0.51], [94, 4, 4, 1.91], [11490, 1, 4, 0.48], [107, 7, 5, 1.2], [3673, 2, 4, 2.08], [2438, 2, 5, 1.32], [2421, 80, 4, 1.42], [11844, 2, 4, 0.42], [11671, 1, 4, 1.1], [5939, 3, 4, 0.39], [4940, 1, 4, 0.43], [1309, 1, 4, 1.35], [11771, 1, 4, 1.61], [140, 2, 4, 0.62], [11160, 1, 4, 0.44], [3495, 3, 10, 0.98], [7036, 1, 4, 0.43], [1668, 1, 4, 0.78], [409, 1, 4, 0.42], [9491, 21, 10, 0.58], [5813, 3, 5, 0.98], [11954, 1, 4, 0.42], [105, 3, 4, 0.44], [12347, 1, 4, 0.63], [23920, 2, 4, 0.42], [12764, 2, 5, 0.73], [9690, 1, 4, 0.51], [19687, 1, 4, 1.2], [11808, 1, 4, 0.43], [2421, 29, 4, 1.46], [2108, 3, 5, 0.54], [5811, 3, 5, 0.98], [8274, 3, 4, 2.3], [11180, 1, 4, 0.6], [8672, 2, 286, 3.69], [141, 2, 156, 2.66], [362, 2, 142, 2.67], [361, 2, 156, 2.87], [6935, 2, 280, 6], [12721, 2, 284, 4.58], [206, 2, 36, 2.11], [2049, 3, 368, 2.36], [8676, 2, 286, 2.88], [1504, 2, 204, 2.73], [8675, 2, 286, 3.17], [417, 2, 156, 2.66], [6936, 2, 280, 4.92], [3, 2, 121, 2.91], [305, 2, 146, 2.67], [523, 2, 156, 3.01], [151, 1, 33, 2.73], [22247, 2, 284, 3.61], [8650, 2, 225, 3.93], [142, 2, 156, 2.83], [8648, 2, 225, 3.8], [2328, 2, 150, 3.64], [2776, 2, 157, 2.67], [8853, 2, 280, 4.81], [616, 2, 109, 2.74], [11739, 2, 38, 4.3], [2327, 2, 150, 3.61], [411, 2, 109, 2.48], [12352, 1, 613, 4.67], [589, 2, 51, 1.75], [143, 2, 147, 3.34], [950, 1, 20, 1.74], [146, 2, 150, 2.92], [412, 1, 83, 3.98], [8674, 2, 286, 4.03], [12353, 1, 613, 4.67], [145, 2, 150, 2.69], [583, 2, 45, 3.28], [2805, 137, 181, 5.29], [6497, 1, 38, 2.63], [326, 2, 45, 3.28], [418, 2, 142, 2.63], [11738, 2, 57, 4.27], [10574, 3, 499, 4.27], [6097, 80, 65, 4.74], [9784, 1, 72, 3.35], [10149, 3, 894, 3.33], [6097, 29, 32, 4.74], [75, 2, 144, 3.67], [11234, 2, 184, 3.11], [12344, 1, 613, 3.08], [2057, 3, 161, 1.72], [1413, 15, 99, 2.72], [20252, 2, 93, 2.69], [11504, 2, 142, 2.59], [12269, 2, 64, 2.89], [8915, 2, 128, 2.36], [6496, 1, 41, 2.7], [1492, 1, 37, 2.99], [247, 1, 89, 2.63], [2774, 2, 204, 4.89], [6098, 80, 73, 5.62], [12346, 1, 613, 4.67], [3429, 15, 53, 2.63], [1886, 2, 156, 2.71], [416, 1, 85, 3.52], [944, 15, 44, 2.65]]</t>
+  </si>
+  <si>
+    <t>[[2327, 2, 4, 0.52], [6935, 2, 5, 1.69], [305, 2, 4, 0.45], [2778, 2, 4, 0.5], [144, 2, 4, 0.54], [130, 1, 4, 0.45], [589, 2, 5, 0.5], [143, 2, 4, 0.44], [2328, 2, 4, 0.76], [6936, 2, 4, 1.66], [8648, 2, 4, 1.15], [2775, 2, 4, 0.5], [326, 2, 4, 1.22], [8650, 2, 4, 1.53], [593, 2, 4, 0.4], [145, 2, 4, 0.5], [146, 2, 4, 0.57], [3840, 1, 4, 0.79], [7036, 1, 4, 1.2], [2776, 2, 4, 0.62], [2049, 3, 5, 0.42], [615, 2, 4, 1.37], [616, 2, 4, 1.27], [88, 10, 8, 1.0], [151, 1, 4, 0.51], [141, 2, 4, 0.39], [7004, 1, 4, 1.24], [11681, 2, 5, 1.81], [1124, 2, 4, 0.79], [1446, 2, 4, 0.78], [9760, 29, 4, 0.67], [8853, 2, 4, 1.7], [5491, 2, 4, 0.45], [990, 2, 4, 0.77], [1007, 2, 4, 0.46], [159, 3, 5, 0.67], [362, 2, 4, 0.52], [1504, 2, 4, 0.38], [9372, 1, 4, 1.34], [8649, 2, 4, 1.53], [12870, 1, 4, 1.18], [3893, 1, 4, 0.39], [2912, 1, 4, 1.27], [8938, 2, 4, 0.54], [434, 2, 4, 0.49], [624, 2, 4, 1.22], [3889, 1, 4, 0.75], [2054, 3, 4, 0.5], [5165, 1, 4, 1.52], [1429, 2, 4, 0.78], [378, 2, 4, 2.29], [7005, 1, 4, 1.08], [140, 2, 4, 1.22], [7084, 3, 4, 0.57], [3891, 1, 4, 0.41], [2991, 3, 4, 1.1], [10574, 3, 4, 1.36], [1006, 2, 4, 0.55], [7886, 4, 4, 0.44], [7573, 1, 9, 0.82], [10149, 3, 13, 1.21], [5208, 3, 4, 0.97], [75, 2, 4, 1.0], [1622, 1, 4, 0.45], [12352, 1, 4, 0.58], [21793, 1, 4, 1.84], [3, 2, 4, 0.62], [20927, 1, 4, 0.76], [997, 2, 4, 1.26], [12353, 1, 4, 0.58], [5165, 2, 5, 1.57], [11234, 2, 4, 1.25], [12721, 2, 4, 0.96], [346, 3, 4, 0.43], [1886, 2, 4, 0.56], [22247, 2, 4, 1.14], [11811, 1, 4, 0.44], [147, 1, 4, 1.32], [229, 1, 4, 0.49], [996, 2, 4, 0.6], [12346, 1, 4, 0.58], [20252, 2, 4, 0.48], [972, 3, 5, 0.51], [94, 4, 4, 0.4], [998, 2, 4, 0.81], [9491, 21, 10, 0.44], [12345, 1, 4, 0.58], [2912, 2, 7, 1.24], [76, 2, 4, 0.6], [35, 1, 4, 0.79], [11685, 2, 5, 1.83], [439, 1, 4, 0.56], [8104, 1, 4, 0.59], [6158, 2, 4, 2.61], [413, 1, 4, 0.88], [12343, 1, 4, 0.58], [2424, 80, 4, 2.39], [5076, 1, 4, 0.47], [13928, 1, 4, 0.7], [2805, 137, 4, 0.93], [5209, 3, 4, 0.97], [8676, 2, 4, 1.2], [12350, 1, 4, 0.58], [2774, 2, 4, 0.55], [148, 1, 4, 1.33], [83, 2, 4, 0.45], [412, 1, 4, 0.44], [418, 2, 4, 0.63], [33, 1, 4, 0.93], [3495, 3, 10, 0.92], [2336, 3, 5, 0.46], [20256, 2, 4, 0.52], [8898, 3, 4, 0.5], [7887, 4, 4, 0.47], [38, 1, 4, 0.63], [415, 1, 4, 0.53], [96, 11, 13, 0.38], [10407, 10, 6, 1.18], [11739, 2, 4, 1.37], [34, 1, 4, 0.57], [2424, 29, 4, 2.36], [13928, 2, 4, 0.7], [84, 2, 4, 0.9], [126, 2, 4, 1.22], [3048, 3, 4, 1.15], [11953, 1, 4, 0.55], [12344, 1, 4, 0.58], [11772, 1, 4, 0.46], [12351, 1, 4, 0.58], [8939, 2, 4, 0.49], [5584, 3, 4, 1.02], [10410, 10, 9, 1.18], [39, 1, 4, 0.6], [2327, 2, 147, 2.59], [6935, 2, 272, 5.53], [305, 2, 143, 2.46], [2778, 2, 153, 2.56], [144, 2, 147, 2.63], [130, 1, 19, 2.84], [589, 2, 149, 2.51], [143, 2, 144, 2.45], [2328, 2, 147, 3.03], [6936, 2, 272, 4.9], [8648, 2, 218, 4.71], [2775, 2, 153, 2.56], [326, 2, 87, 4.37], [8650, 2, 218, 4.44], [593, 2, 222, 2.57], [145, 2, 147, 2.56], [146, 2, 147, 2.68], [3840, 1, 167, 3.09], [7036, 1, 125, 4.66], [2776, 2, 153, 2.77], [2049, 3, 359, 2.34], [615, 2, 104, 4.64], [616, 2, 104, 3.97], [88, 10, 549, 3.73], [151, 1, 43, 2.78], [141, 2, 152, 2.36], [11681, 2, 260, 5.81], [1124, 2, 181, 3.1], [1446, 2, 99, 3.29], [9760, 29, 70, 2.87], [8853, 2, 272, 4.99], [5491, 2, 102, 3.16], [990, 2, 25, 2.76], [1007, 2, 263, 2.48], [159, 3, 687, 2.82], [362, 2, 138, 2.59], [1504, 2, 199, 2.33], [9372, 1, 221, 4.81], [8649, 2, 218, 4.79], [12870, 1, 134, 4.83], [3893, 1, 122, 2.35], [2912, 1, 47, 3.96], [8938, 2, 125, 2.46], [434, 2, 104, 2.53], [624, 2, 104, 3.89], [3889, 1, 122, 3.01], [2054, 3, 157, 1.88], [5165, 1, 46, 4.64], [1429, 2, 148, 3.1], [378, 2, 218, 5.84], [7005, 1, 26, 2.97], [140, 2, 87, 4.37], [7084, 3, 128, 2.69], [3891, 1, 122, 2.4], [2991, 3, 158, 5.28], [10574, 3, 328, 4.69], [1006, 2, 222, 2.65], [7886, 4, 70, 2.11], [7573, 1, 359, 3.74], [10149, 3, 864, 3.73], [5208, 3, 541, 3.41], [75, 2, 141, 3.52], [1622, 1, 105, 2.47], [12352, 1, 617, 2.72], [21793, 1, 233, 5.69], [3, 2, 118, 2.78], [20927, 1, 77, 3.03]]</t>
+  </si>
+  <si>
+    <t>[[2778, 2, 11, 1.08], [6935, 2, 19, 5], [305, 2, 7, 0.88], [8672, 2, 10, 1.91], [615, 2, 7, 1.73], [1504, 2, 11, 1.34], [2775, 2, 7, 1.29], [145, 2, 7, 0.9], [2776, 2, 7, 2.59], [8853, 2, 7, 3.5], [2327, 2, 7, 1.82], [130, 1, 7, 1.86], [12721, 2, 11, 1.69], [143, 2, 7, 0.93], [2328, 2, 7, 1.85], [146, 2, 7, 1.14], [2049, 3, 14, 0.75], [361, 2, 7, 1.08], [11681, 2, 13, 4.48], [616, 2, 7, 2.52], [362, 2, 7, 0.94], [5491, 2, 7, 1.03], [205, 2, 7, 0.74], [141, 2, 7, 1.0], [2497, 2, 7, 1.14], [8650, 2, 9, 3.6], [144, 2, 7, 0.97], [1124, 2, 10, 1.74], [5493, 2, 7, 1.4], [417, 2, 7, 0.87], [8676, 2, 7, 1.1], [8673, 2, 7, 2.94], [3670, 2, 9, 4.76], [2774, 2, 7, 3.92], [8648, 2, 7, 2.98], [589, 2, 7, 0.79], [3, 2, 7, 1.21], [308, 1, 13, 1.15], [206, 2, 7, 0.74], [6097, 80, 7, 3.42], [2423, 29, 7, 5], [22247, 2, 7, 2.24], [6497, 1, 7, 0.85], [11836, 2, 7, 0.94], [8674, 2, 7, 2.25], [624, 2, 7, 2.17], [2055, 3, 7, 0.84], [2423, 80, 7, 5], [523, 2, 7, 1.22], [12344, 1, 7, 1.3], [593, 2, 8, 0.89], [6097, 29, 7, 3.43], [6098, 80, 7, 3.83], [990, 2, 7, 1.41], [12720, 2, 7, 1.69], [75, 2, 7, 1.04], [8915, 2, 7, 0.75], [88, 10, 14, 2.51], [944, 15, 7, 0.85], [326, 2, 7, 2.08], [60, 3, 8, 1.5], [13260, 29, 7, 0.66], [3429, 15, 7, 0.85], [1492, 1, 7, 1.2], [1413, 15, 7, 0.99], [411, 2, 7, 0.74], [412, 1, 7, 2.75], [2422, 80, 7, 3.61], [6496, 1, 7, 0.91], [10149, 3, 21, 0.95], [378, 2, 7, 4.21], [2422, 29, 7, 3.61], [7704, 2, 7, 0.78], [6098, 29, 7, 3.83], [159, 3, 9, 1.37], [151, 1, 7, 1.31], [22316, 3, 7, 0.85], [11738, 2, 7, 3.53], [20252, 2, 7, 0.98], [13264, 29, 7, 1.01], [12269, 2, 7, 0.83], [345, 3, 7, 1.01], [13258, 29, 7, 2.26], [1490, 1, 7, 0.65], [10407, 10, 10, 2.08], [2331, 1, 7, 1.32], [22558, 3, 7, 1.74], [307, 2, 7, 1.61], [1163, 3, 7, 2.67], [416, 1, 7, 2.8], [201, 3, 7, 1.01], [2821, 3, 13, 0.77], [114, 3, 7, 1.76], [2912, 1, 7, 2.42], [2438, 1, 7, 2.49], [149, 2, 7, 1.95], [418, 2, 7, 0.68], [7705, 2, 7, 0.78], [13259, 29, 7, 2.54], [957, 2, 7, 0.93], [432, 3, 7, 3.74], [12229, 2, 7, 1.29], [7706, 2, 7, 0.78], [21793, 1, 7, 3.5], [11687, 2, 7, 1.02], [8938, 2, 7, 1.0], [11844, 2, 7, 0.95], [5490, 2, 7, 0.85], [1413, 16, 7, 0.99], [7036, 1, 7, 0.87], [1414, 15, 7, 0.91], [10406, 10, 12, 2.42], [21713, 3, 13, 0.88], [20255, 2, 7, 0.93], [2421, 80, 7, 2.62], [12870, 1, 7, 4.46], [9784, 1, 7, 1.67], [10408, 10, 10, 1.81], [10410, 10, 10, 2.08], [11402, 1, 7, 0.66], [3478, 2, 7, 2.36], [7084, 3, 7, 0.67], [19687, 1, 7, 2.21], [11161, 1, 10, 0.93], [956, 2, 7, 1.14], [2703, 3, 7, 0.83], [1886, 2, 7, 0.92], [21781, 2, 7, 0.86], [107, 7, 8, 2.38], [22125, 2, 7, 0.66], [10411, 10, 10, 1.97], [11690, 2, 7, 0.88], [11490, 1, 7, 1.02], [2422, 80, 177, 5.4], [6496, 1, 41, 2.7], [10149, 3, 901, 2.74], [378, 2, 224, 5.99], [2422, 29, 35, 5.4], [7704, 2, 181, 2.56], [6098, 29, 37, 5.62], [159, 3, 706, 3.16], [151, 1, 33, 2.73], [22316, 3, 317, 2.64], [11738, 2, 28, 4.95], [20252, 2, 92, 2.76], [13264, 29, 72, 2.79], [12269, 2, 64, 2.62], [345, 3, 296, 2.8], [13258, 29, 39, 4.04], [1490, 1, 51, 2.44], [10407, 10, 1196, 3.88], [2331, 1, 118, 3.11], [22558, 3, 162, 2.8], [307, 2, 148, 3.39], [416, 1, 85, 4.58], [201, 3, 296, 2.8], [2821, 3, 1331, 2.55], [114, 3, 243, 3.54], [2912, 1, 48, 4.2], [2438, 1, 52, 4.27], [149, 2, 87, 3.74], [418, 2, 143, 2.47], [7705, 2, 181, 2.56], [13259, 29, 35, 4.33], [957, 2, 106, 2.71], [432, 3, 299, 5.53], [12229, 2, 150, 3.07], [7706, 2, 181, 2.56], [21793, 1, 241, 5.28], [11687, 2, 302, 2.8], [8938, 2, 191, 2.78], [11844, 2, 276, 2.73], [5490, 2, 108, 2.63], [1413, 16, 50, 2.77], [7036, 1, 127, 2.65], [1414, 15, 99, 2.69], [10406, 10, 1775, 4.18], [21713, 3, 1116, 2.67], [20255, 2, 93, 2.71], [2421, 80, 208, 4.41], [12870, 1, 136, 6], [9784, 1, 72, 3.45], [10408, 10, 781, 3.6], [10410, 10, 1196, 3.88], [11402, 1, 45, 2.44], [3478, 2, 75, 4.14], [19687, 1, 30, 3.99], [11161, 1, 516, 2.71], [956, 2, 106, 2.92], [2703, 3, 328, 2.61], [1886, 2, 156, 2.71], [21781, 2, 104, 2.65], [107, 7, 238, 4.16], [22125, 2, 62, 2.45], [10411, 10, 781, 3.76], [11690, 2, 302, 2.66], [11490, 1, 109, 2.8]]</t>
+  </si>
+  <si>
+    <t>[[141, 2, 7, 0.88], [2328, 2, 7, 1.85], [8650, 2, 9, 2.32], [362, 2, 7, 0.94], [5491, 2, 7, 1.11], [5493, 2, 7, 1.48], [130, 1, 7, 1.86], [589, 2, 7, 0.95], [2327, 2, 7, 1.82], [11685, 2, 7, 3.95], [326, 2, 7, 1.85], [8672, 2, 10, 1.91], [417, 2, 7, 0.87], [6935, 2, 19, 3.74], [1124, 2, 10, 1.27], [11681, 2, 13, 5], [206, 2, 7, 1.04], [8648, 2, 7, 2.53], [6936, 2, 9, 2.57], [142, 2, 7, 1.05], [8915, 2, 7, 0.71], [12721, 2, 11, 1.45], [1446, 2, 7, 1.55], [2049, 3, 14, 0.73], [11838, 2, 7, 1.02], [523, 2, 7, 1.22], [8676, 2, 7, 1.1], [615, 2, 7, 1.37], [305, 2, 7, 0.88], [616, 2, 7, 1.32], [412, 1, 7, 1.78], [413, 1, 7, 1.72], [11739, 2, 7, 3.39], [10574, 3, 9, 2.49], [145, 2, 7, 0.9], [2775, 2, 7, 0.78], [21793, 1, 7, 3.5], [1429, 2, 7, 1.03], [76, 2, 7, 2.04], [8675, 2, 9, 1.39], [990, 2, 7, 1.65], [8673, 2, 7, 2.87], [143, 2, 7, 1.06], [8938, 2, 7, 1.0], [11836, 2, 7, 0.86], [146, 2, 7, 1.14], [8674, 2, 7, 2.25], [6158, 2, 8, 2.65], [151, 1, 7, 1.31], [2776, 2, 7, 1.37], [2050, 3, 7, 0.64], [12720, 2, 7, 1.45], [10149, 3, 21, 1.56], [3495, 3, 17, 1.77], [12350, 1, 7, 1.4], [2054, 3, 7, 0.91], [75, 2, 7, 2.15], [2057, 3, 7, 0.64], [11738, 2, 7, 3.18], [1504, 2, 11, 1.08], [144, 2, 7, 0.97], [8939, 2, 7, 0.93], [416, 1, 7, 1.34], [22316, 3, 7, 0.85], [159, 3, 9, 1.37], [88, 10, 14, 2.51], [2859, 15, 7, 2.02], [7885, 4, 7, 0.81], [418, 2, 7, 0.68], [7084, 3, 7, 3.6], [10993, 2, 7, 0.85], [21798, 1, 7, 0.95], [20252, 2, 7, 0.92], [12346, 1, 7, 1.06], [414, 1, 7, 1.72], [7705, 2, 7, 2.28], [410, 1, 7, 0.88], [2424, 29, 7, 3.84], [12526, 2, 7, 3.89], [5165, 1, 7, 2.92], [2423, 29, 7, 3.65], [11844, 2, 7, 0.78], [2423, 80, 7, 3.59], [12351, 1, 7, 0.89], [6494, 1, 7, 0.77], [11490, 1, 7, 0.88], [378, 2, 7, 3.17], [12373, 1, 11, 2.99], [2424, 80, 7, 3.81], [13023, 3, 10, 2.63], [13034, 3, 9, 2.15], [60, 3, 8, 2.67], [1414, 15, 7, 1.02], [201, 3, 7, 2.66], [11770, 1, 7, 1.83], [1519, 3, 15, 0.69], [345, 3, 7, 1.02], [6952, 1, 7, 2.01], [159, 1, 7, 1.12], [9126, 1, 7, 1.58], [13928, 1, 7, 0.82], [11808, 1, 7, 0.8], [3430, 15, 7, 2.42], [20927, 1, 7, 0.87], [3429, 15, 7, 0.85], [11954, 1, 7, 0.77], [11811, 1, 7, 1.93], [432, 3, 7, 3.74], [566, 2, 7, 0.92], [2331, 1, 7, 1.32], [11504, 2, 7, 0.77], [10407, 10, 10, 2.08], [5584, 3, 7, 3.34], [114, 3, 7, 0.91], [7886, 4, 7, 0.81], [7004, 1, 7, 0.96], [1490, 1, 7, 3.25], [105, 3, 7, 0.81], [11089, 1, 7, 0.82], [1492, 1, 7, 1.2], [11953, 1, 7, 0.89], [8274, 3, 7, 4.22], [2703, 3, 7, 0.82], [6098, 80, 7, 4.17], [944, 15, 7, 0.85], [10410, 10, 10, 2.08], [1886, 2, 7, 0.92], [22317, 3, 8, 0.85], [94, 4, 7, 4.31], [11161, 1, 10, 0.93], [6097, 80, 7, 3.42], [3891, 1, 7, 3.83], [11485, 24, 7, 1.03], [418, 2, 143, 2.47], [7084, 3, 128, 5.39], [10993, 2, 55, 2.63], [21798, 1, 139, 2.73], [20252, 2, 93, 2.7], [12346, 1, 623, 2.85], [414, 1, 86, 3.5], [7705, 2, 175, 4.06], [410, 1, 53, 2.3], [2424, 29, 33, 5.62], [12526, 2, 271, 5.68], [5165, 1, 48, 4.7], [2423, 29, 36, 5.44], [11844, 2, 276, 2.57], [2423, 80, 180, 5.38], [12351, 1, 623, 2.68], [6494, 1, 43, 2.49], [11490, 1, 109, 2.66], [378, 2, 225, 4.95], [12373, 1, 540, 4.77], [2424, 80, 163, 5.6], [13023, 3, 589, 4.42], [13034, 3, 589, 3.94], [60, 3, 797, 4.46], [1414, 15, 99, 2.8], [201, 3, 297, 4.45], [11770, 1, 215, 3.62], [1519, 3, 1116, 2.29], [345, 3, 297, 2.8], [6952, 1, 188, 3.79], [159, 1, 39, 2.9], [9126, 1, 70, 3.36], [13928, 1, 48, 2.6], [11808, 1, 486, 2.57], [3430, 15, 69, 4.2], [20927, 1, 79, 2.66], [3429, 15, 53, 2.63], [11954, 1, 202, 2.56], [11811, 1, 449, 3.71], [432, 3, 299, 5.53], [566, 2, 174, 2.7], [2331, 1, 118, 3.11], [11504, 2, 143, 2.55], [10407, 10, 1196, 3.88], [5584, 3, 230, 5.12], [114, 3, 205, 2.62], [7886, 4, 72, 2.23], [7004, 1, 79, 2.75], [1490, 1, 48, 5.03], [105, 3, 205, 2.52], [11089, 1, 172, 2.61], [1492, 1, 37, 2.99], [11953, 1, 202, 2.68], [2703, 3, 325, 2.6], [6098, 80, 73, 5.95], [944, 15, 44, 2.63], [10410, 10, 1196, 3.88], [1886, 2, 156, 2.71], [22317, 3, 315, 2.63], [94, 4, 115, 6], [11161, 1, 516, 2.71], [6097, 80, 67, 5.21], [3891, 1, 122, 5.61], [11485, 24, 221, 2.81]]</t>
+  </si>
+  <si>
+    <t>[[326, 2, 8, 0.98], [6935, 2, 19, 3.05], [589, 2, 10, 0.8], [141, 2, 7, 0.99], [75, 2, 7, 1.83], [3, 2, 7, 0.82], [1776, 1, 7, 1.07], [8915, 2, 9, 0.7], [2778, 2, 7, 1.06], [6936, 2, 10, 2.67], [8672, 2, 10, 2.91], [593, 2, 11, 0.83], [305, 2, 7, 0.88], [206, 2, 7, 0.71], [151, 1, 7, 0.81], [8648, 2, 7, 3.21], [2328, 2, 7, 0.94], [88, 10, 14, 2.44], [11681, 2, 10, 4.88], [990, 2, 7, 1.16], [8650, 2, 7, 3.25], [412, 1, 7, 1.67], [5151, 2, 7, 0.73], [2050, 3, 7, 1.21], [76, 2, 7, 2.04], [144, 2, 7, 0.93], [10149, 3, 25, 3.26], [345, 3, 8, 1.82], [2991, 3, 7, 3.64], [22247, 2, 9, 2.5], [3478, 2, 7, 2.36], [57, 1, 7, 0.7], [146, 2, 7, 1.03], [45, 2, 7, 2.65], [143, 2, 7, 0.84], [417, 2, 7, 2.37], [413, 1, 7, 0.73], [167, 3, 7, 2.0], [21793, 1, 7, 3.62], [1446, 2, 7, 1.56], [74, 1, 7, 2.52], [2055, 3, 7, 2.83], [346, 1, 7, 0.82], [201, 3, 8, 3.06], [168, 3, 7, 1.38], [10, 2, 9, 3.05], [7036, 1, 7, 2.84], [11234, 2, 7, 1.26], [1429, 2, 7, 0.98], [7084, 3, 7, 2.45], [335, 3, 18, 0.69], [8938, 2, 8, 0.62], [12721, 2, 10, 1.92], [5081, 2, 7, 1.0], [3495, 3, 21, 1.57], [8649, 2, 7, 2.97], [13028, 3, 7, 0.92], [308, 1, 7, 4.48], [410, 1, 7, 0.73], [3889, 1, 7, 1.88], [12870, 1, 7, 4.27], [10825, 21, 14, 0.68], [3893, 1, 7, 1.17], [96, 11, 23, 0.81], [1492, 1, 7, 0.7], [1006, 2, 7, 1.22], [1504, 2, 7, 0.89], [418, 2, 7, 0.77], [5208, 3, 13, 1.06], [3891, 1, 7, 1.37], [145, 2, 7, 0.79], [9827, 3, 7, 0.86], [94, 4, 7, 2.54], [8853, 2, 11, 2.76], [1490, 1, 7, 0.85], [13260, 29, 7, 0.85], [5812, 3, 8, 2.12], [416, 1, 7, 1.46], [432, 3, 7, 0.75], [8651, 2, 7, 2.11], [25, 1, 7, 1.75], [142, 2, 7, 2.37], [8939, 2, 7, 0.83], [12353, 1, 7, 1.55], [20256, 2, 7, 0.69], [21269, 3, 7, 4.99], [950, 1, 7, 0.97], [5086, 1, 7, 2.04], [1243, 2, 7, 1.69], [33, 1, 7, 1.21], [9069, 1, 7, 2.06], [229, 1, 7, 3.82], [998, 2, 7, 2.91], [12350, 1, 7, 3.09], [140, 2, 7, 0.86], [2878, 1, 7, 1.09], [7567, 3, 7, 3.13], [126, 2, 7, 0.86], [346, 3, 8, 0.74], [9829, 3, 7, 0.76], [8274, 3, 7, 1.42], [9691, 1, 7, 2.81], [35, 1, 7, 0.84], [5584, 3, 7, 0.82], [1070, 7, 13, 0.65], [997, 2, 7, 1.11], [3980, 4, 7, 2.59], [5660, 2, 7, 1.94], [5209, 3, 7, 0.68], [11914, 1, 7, 1.52], [1519, 3, 17, 0.69], [8898, 3, 7, 3.98], [159, 3, 8, 1.33], [9372, 1, 7, 2.03], [5513, 2, 7, 0.84], [1091, 1, 7, 1.1], [24, 1, 7, 1.75], [2775, 2, 7, 1.06], [13034, 3, 8, 2.48], [9081, 3, 12, 3.64], [523, 2, 7, 1.37], [12661, 1, 7, 0.86], [20255, 2, 7, 0.71], [11808, 1, 7, 1.44], [307, 2, 7, 1.18], [11491, 2, 7, 0.93], [434, 2, 7, 1.13], [1163, 3, 7, 0.87], [12225, 1, 7, 0.96], [336, 15, 7, 0.8], [952, 4, 7, 3.72], [8945, 3, 8, 5.0], [9082, 3, 24, 1.19], [418, 2, 131, 1.93], [5208, 3, 392, 2.09], [3891, 1, 115, 2.52], [145, 2, 139, 1.94], [9827, 3, 81, 2.01], [94, 4, 110, 3.69], [8853, 2, 262, 3.91], [1490, 1, 47, 2.0], [13260, 29, 67, 2.0], [5812, 3, 540, 3.28], [416, 1, 79, 2.61], [432, 3, 281, 1.91], [8651, 2, 207, 3.26], [25, 1, 103, 2.9], [142, 2, 143, 3.53], [8939, 2, 134, 1.85], [12353, 1, 557, 2.7], [20256, 2, 86, 1.84], [21269, 3, 270, 6], [950, 1, 55, 2.12], [5086, 1, 169, 3.19], [1243, 2, 90, 2.84], [33, 1, 103, 2.36], [9069, 1, 112, 3.21], [229, 1, 75, 4.97], [998, 2, 221, 4.07], [12350, 1, 557, 4.25], [140, 2, 84, 2.01], [2878, 1, 74, 2.24], [7567, 3, 64, 4.28], [126, 2, 84, 2.01], [346, 3, 584, 1.88], [9829, 3, 64, 1.91], [8274, 3, 159, 2.19], [9691, 1, 69, 3.96], [35, 1, 103, 1.99], [5584, 3, 231, 1.97], [1070, 7, 549, 1.81], [997, 2, 221, 2.26], [3980, 4, 443, 3.74], [5660, 2, 162, 3.09], [5209, 3, 522, 1.84], [11914, 1, 80, 2.67], [1519, 3, 1544, 1.83], [8898, 3, 260, 5.13], [159, 3, 651, 2.48], [9372, 1, 209, 3.19], [5513, 2, 69, 1.99], [1091, 1, 44, 2.25], [24, 1, 103, 2.9], [2775, 2, 144, 2.21], [13034, 3, 540, 3.64], [9081, 3, 422, 4.8], [523, 2, 143, 2.52], [12661, 1, 75, 2.01], [20255, 2, 86, 1.86], [11808, 1, 443, 2.59], [307, 2, 137, 2.33], [11491, 2, 131, 2.08], [434, 2, 98, 2.28], [1163, 3, 238, 1.89], [12225, 1, 153, 2.11], [336, 15, 105, 1.96], [952, 4, 66, 4.87], [8945, 3, 540, 6], [9082, 3, 2299, 2.38]]</t>
+  </si>
+  <si>
+    <t>[[88, 10, 16, 2.1], [2327, 2, 7, 0.96], [589, 2, 8, 0.87], [2778, 2, 7, 0.93], [6935, 2, 11, 3.9], [2328, 2, 7, 1.39], [130, 1, 7, 1.86], [615, 2, 7, 3.0], [305, 2, 7, 0.82], [616, 2, 7, 2.33], [6936, 2, 7, 3.27], [326, 2, 7, 2.74], [8650, 2, 7, 2.8], [8648, 2, 7, 3.08], [1446, 2, 7, 1.82], [7004, 1, 7, 2.28], [2049, 3, 10, 0.87], [10, 2, 7, 3.05], [159, 3, 8, 1.18], [143, 2, 7, 0.81], [593, 2, 9, 0.94], [2775, 2, 7, 0.93], [5491, 2, 7, 1.52], [7036, 1, 7, 3.03], [144, 2, 7, 0.99], [3840, 1, 7, 1.45], [151, 1, 7, 1.31], [8938, 2, 7, 0.99], [94, 4, 7, 2.1], [434, 2, 7, 0.89], [1124, 2, 7, 1.46], [3893, 1, 7, 0.71], [990, 2, 7, 1.45], [1504, 2, 7, 0.69], [146, 2, 7, 1.05], [8853, 2, 7, 3.35], [624, 2, 7, 2.25], [12224, 1, 7, 0.83], [1429, 2, 7, 1.46], [2776, 2, 7, 1.13], [3891, 1, 7, 0.76], [362, 2, 7, 0.95], [141, 2, 7, 0.72], [11681, 2, 11, 4.17], [378, 2, 7, 4.21], [5208, 3, 7, 1.78], [3889, 1, 7, 1.38], [1007, 2, 7, 0.85], [10574, 3, 9, 3.22], [11234, 2, 7, 2.3], [2054, 3, 7, 0.91], [12870, 1, 7, 3.19], [7005, 1, 7, 1.99], [7886, 4, 7, 0.8], [10149, 3, 21, 2.09], [21793, 1, 7, 4.06], [145, 2, 7, 0.93], [11811, 1, 7, 0.8], [7084, 3, 7, 1.05], [20927, 1, 7, 1.39], [2912, 1, 7, 2.33], [8672, 2, 7, 3.61], [5165, 1, 7, 3.0], [9760, 29, 7, 1.24], [998, 2, 7, 1.5], [997, 2, 7, 2.32], [417, 2, 7, 0.84], [2436, 4, 7, 2.18], [1886, 2, 7, 1.04], [1006, 2, 7, 1.01], [346, 3, 7, 0.8], [972, 3, 8, 1.52], [2424, 80, 7, 4.39], [229, 1, 7, 0.89], [3495, 3, 16, 1.61], [6158, 2, 7, 4.79], [8651, 2, 7, 2.33], [5076, 1, 7, 0.87], [9372, 1, 7, 3.18], [11953, 1, 7, 1.0], [7887, 4, 7, 1.42], [5165, 2, 8, 3.08], [20252, 2, 7, 0.88], [126, 2, 7, 2.74], [523, 2, 7, 0.65], [74, 1, 7, 3.84], [142, 2, 7, 0.65], [11770, 1, 7, 1.22], [140, 2, 7, 2.74], [8939, 2, 7, 0.89], [11954, 1, 7, 0.7], [1492, 1, 7, 0.97], [20256, 2, 7, 0.96], [996, 2, 7, 3.13], [11685, 2, 11, 4.22], [2912, 2, 12, 2.22], [2774, 2, 7, 1.01], [12721, 2, 7, 1.92], [3981, 3, 22, 1.3], [9491, 21, 21, 0.95], [5434, 1, 7, 1.52], [2423, 80, 7, 2.7], [11772, 1, 7, 0.84], [5584, 3, 7, 2.24], [10407, 10, 10, 2.08], [6496, 1, 7, 0.79], [10388, 2, 7, 2.08], [11179, 1, 7, 1.42], [2438, 2, 8, 1.87], [361, 2, 7, 0.76], [2805, 137, 7, 2.91], [5209, 3, 7, 1.78], [8898, 3, 7, 1.0], [12526, 2, 7, 0.97], [2424, 29, 7, 4.34], [7573, 1, 22, 2.1], [3900, 3, 7, 2.41], [2104, 3, 15, 0.7], [11812, 1, 7, 0.84], [4253, 1, 7, 1.0], [8676, 2, 7, 3.61], [1519, 3, 17, 0.69], [22247, 2, 7, 2.27], [96, 11, 21, 0.64], [1622, 1, 7, 0.84], [412, 1, 7, 0.81], [12764, 2, 8, 1.28], [972, 1, 7, 1.53], [432, 3, 7, 3.74], [9784, 1, 7, 0.96], [10386, 2, 7, 4.24], [1274, 1, 7, 1.32], [159, 16, 7, 1.02], [1886, 2, 152, 2.67], [1006, 2, 222, 2.65], [346, 3, 617, 2.44], [972, 3, 579, 3.17], [2424, 80, 160, 6], [229, 1, 82, 2.53], [3495, 3, 935, 3.25], [6158, 2, 248, 6], [8651, 2, 218, 3.96], [5076, 1, 127, 2.5], [9372, 1, 221, 4.81], [11953, 1, 194, 2.64], [7887, 4, 68, 2.73], [5165, 2, 369, 4.71], [20252, 2, 91, 2.52], [126, 2, 87, 4.37], [523, 2, 151, 2.29], [74, 1, 193, 5.48], [142, 2, 151, 2.29], [11770, 1, 212, 2.85], [140, 2, 87, 4.37], [8939, 2, 187, 2.53], [11954, 1, 194, 2.34], [1492, 1, 36, 2.61], [20256, 2, 91, 2.59], [996, 2, 227, 4.77], [11685, 2, 260, 5.85], [2912, 2, 379, 3.85], [2774, 2, 199, 2.65], [12721, 2, 274, 3.56], [3981, 3, 1607, 2.93], [9491, 21, 2074, 2.55], [5434, 1, 47, 3.16], [2423, 80, 177, 4.33], [11772, 1, 214, 2.47], [5584, 3, 232, 3.88], [10407, 10, 1164, 3.71], [6496, 1, 40, 2.42], [10388, 2, 210, 3.71], [11179, 1, 85, 3.06], [2438, 2, 607, 3.51], [361, 2, 151, 2.39], [2805, 137, 174, 4.54], [5209, 3, 541, 3.41], [8898, 3, 285, 2.64], [12526, 2, 270, 2.61], [2424, 29, 32, 5.98], [7573, 1, 359, 3.74], [3900, 3, 42, 4.05], [2104, 3, 115, 1.67], [11812, 1, 232, 2.48], [4253, 1, 166, 2.63], [8676, 2, 275, 5.25], [1519, 3, 1630, 2.34], [22247, 2, 274, 3.9], [96, 11, 555, 2.1], [1622, 1, 105, 2.47], [412, 1, 82, 2.45], [12764, 2, 718, 2.92], [972, 1, 97, 3.16], [432, 3, 291, 5.38], [9784, 1, 71, 2.6], [10386, 2, 210, 5.87], [1274, 1, 80, 2.95], [159, 16, 77, 2.66]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 11, 3.36], [141, 2, 7, 1.09], [589, 2, 8, 0.75], [2778, 2, 7, 1.83], [6936, 2, 13, 3.9], [8648, 2, 7, 4.05], [362, 2, 7, 1.03], [11681, 2, 22, 3.67], [8650, 2, 7, 3.82], [326, 2, 7, 1.32], [205, 2, 7, 0.85], [2328, 2, 7, 1.6], [1446, 2, 7, 0.92], [130, 1, 7, 2.31], [305, 2, 7, 1.84], [8649, 2, 7, 4.51], [2775, 2, 7, 1.83], [8853, 2, 11, 4.03], [361, 2, 7, 1.11], [2776, 2, 7, 2.25], [593, 2, 7, 0.96], [143, 2, 7, 1.27], [140, 2, 7, 0.86], [1429, 2, 7, 1.08], [206, 2, 7, 1.04], [523, 2, 7, 0.99], [5493, 2, 7, 0.98], [7036, 1, 7, 2.71], [413, 1, 7, 1.37], [7004, 1, 7, 0.72], [5491, 2, 7, 0.92], [412, 1, 7, 1.25], [21793, 1, 7, 2.44], [12350, 1, 7, 0.98], [1124, 2, 7, 1.46], [151, 1, 7, 0.68], [990, 2, 7, 1.44], [12353, 1, 7, 1.02], [5165, 1, 7, 2.37], [8915, 2, 8, 2.74], [615, 2, 7, 0.9], [417, 2, 7, 1.01], [583, 2, 7, 1.32], [248, 1, 7, 0.85], [201, 3, 7, 3.06], [142, 2, 7, 1.02], [6097, 80, 7, 3.46], [6952, 1, 7, 3.04], [434, 2, 7, 1.23], [11770, 1, 7, 0.97], [9372, 1, 7, 3.84], [345, 3, 7, 1.68], [11234, 2, 7, 1.26], [616, 2, 7, 0.67], [3670, 2, 7, 2.71], [7005, 1, 7, 0.86], [3893, 1, 7, 0.84], [5165, 2, 12, 2.36], [12346, 1, 7, 0.98], [998, 2, 7, 2.26], [2912, 1, 7, 3.77], [7084, 3, 7, 4.0], [12870, 1, 7, 2.21], [10574, 3, 8, 1.89], [12343, 1, 7, 0.89], [2424, 80, 7, 3.78], [1886, 2, 7, 1.02], [346, 3, 7, 0.8], [3334, 5, 7, 2.14], [20927, 1, 7, 0.65], [12351, 1, 7, 0.7], [6097, 29, 7, 3.51], [6098, 80, 7, 1.63], [12345, 1, 7, 0.85], [22316, 3, 7, 0.85], [147, 1, 7, 3.25], [11772, 1, 7, 0.91], [10149, 3, 24, 2.14], [20256, 2, 7, 0.68], [432, 3, 7, 1.15], [11491, 2, 7, 0.89], [2912, 2, 8, 3.77], [1492, 1, 7, 0.7], [11952, 1, 7, 0.87], [20252, 2, 7, 1.18], [1519, 3, 16, 0.69], [418, 2, 7, 1.44], [2423, 80, 7, 3.61], [4032, 29, 7, 0.96], [411, 2, 7, 1.0], [5151, 2, 7, 1.0], [229, 1, 7, 3.82], [972, 3, 7, 1.88], [12304, 1, 7, 1.77], [3576, 25, 7, 1.04], [346, 1, 7, 0.79], [2331, 1, 7, 1.92], [13034, 3, 7, 3.52], [416, 1, 7, 0.91], [13244, 1, 7, 0.66], [3, 2, 7, 1.08], [2424, 29, 7, 3.78], [11426, 25, 7, 1.08], [11737, 2, 7, 0.8], [5076, 1, 7, 1.21], [2805, 137, 7, 2.14], [439, 1, 7, 3.23], [11490, 1, 7, 1.1], [11583, 29, 7, 0.84], [414, 1, 7, 1.48], [1413, 15, 7, 1.02], [6494, 1, 7, 0.77], [950, 1, 7, 0.66], [410, 1, 7, 0.8], [3575, 25, 7, 1.04], [12764, 2, 8, 1.18], [13280, 1, 7, 3.47], [75, 2, 7, 0.73], [3478, 2, 7, 1.16], [1701, 2, 7, 3.5], [11180, 1, 7, 1.14], [11813, 1, 7, 3.67], [4253, 1, 7, 1.64], [8677, 3, 8, 2.03], [13023, 3, 8, 2.24], [11586, 1, 14, 1.84], [9784, 1, 7, 1.61], [9998, 80, 7, 2.18], [1309, 1, 7, 2.52], [12526, 2, 7, 3.55], [2438, 2, 8, 2.09], [4033, 29, 7, 0.85], [6098, 29, 7, 1.63], [346, 3, 547, 2.22], [3334, 5, 154, 3.56], [20927, 1, 69, 2.07], [12351, 1, 535, 2.13], [6097, 29, 29, 4.93], [6098, 80, 64, 3.05], [12345, 1, 535, 2.28], [22316, 3, 272, 2.27], [147, 1, 76, 4.67], [11772, 1, 189, 2.33], [10149, 3, 756, 3.55], [20256, 2, 80, 2.09], [432, 3, 262, 2.56], [11491, 2, 121, 2.31], [2912, 2, 324, 5.19], [1492, 1, 32, 2.12], [11952, 1, 172, 2.28], [20252, 2, 79, 2.59], [1519, 3, 1437, 2.11], [418, 2, 121, 2.86], [2423, 80, 154, 5.03], [4032, 29, 82, 2.38], [411, 2, 93, 2.41], [5151, 2, 21, 2.42], [229, 1, 69, 5.24], [972, 3, 508, 3.29], [12304, 1, 94, 3.19], [3576, 25, 87, 2.46], [346, 1, 137, 2.21], [2331, 1, 100, 3.34], [13034, 3, 505, 4.94], [416, 1, 74, 2.33], [13244, 1, 42, 2.08], [3, 2, 104, 2.5], [2424, 29, 28, 5.2], [11426, 25, 102, 2.5], [11737, 2, 49, 2.22], [5076, 1, 110, 2.63], [2805, 137, 154, 3.56], [439, 1, 74, 4.65], [11490, 1, 93, 2.52], [11583, 29, 48, 2.26], [414, 1, 74, 2.9], [1413, 15, 85, 2.44], [6494, 1, 45, 2.19], [950, 1, 41, 1.99], [410, 1, 90, 2.22], [3575, 25, 87, 2.46], [12764, 2, 633, 2.59], [13280, 1, 271, 4.89], [75, 2, 124, 2.15], [3478, 2, 65, 2.58], [1701, 2, 139, 4.92], [11180, 1, 75, 2.55], [11813, 1, 264, 5.09], [4253, 1, 144, 3.05], [8677, 3, 253, 3.45], [13023, 3, 508, 3.66], [11586, 1, 309, 3.26], [9784, 1, 61, 3.03], [9998, 80, 104, 3.6], [1309, 1, 47, 3.94], [12526, 2, 141, 4.73], [2438, 2, 535, 3.51], [4033, 29, 88, 2.27], [6098, 29, 32, 3.05]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 10, 2.81], [2778, 2, 7, 1.07], [615, 2, 7, 1.6], [305, 2, 7, 0.94], [130, 1, 7, 1.94], [6936, 2, 9, 3.19], [616, 2, 7, 1.13], [205, 2, 7, 0.93], [1504, 2, 7, 0.9], [8648, 2, 7, 2.71], [144, 2, 7, 0.86], [2049, 3, 14, 0.87], [88, 10, 15, 0.85], [7036, 1, 7, 2.27], [326, 2, 7, 1.94], [8650, 2, 7, 2.48], [589, 2, 8, 0.61], [593, 2, 9, 1.22], [2327, 2, 7, 0.98], [3893, 1, 7, 1.17], [11681, 2, 9, 3.34], [8853, 2, 7, 2.37], [2775, 2, 7, 1.07], [141, 2, 7, 1.58], [206, 2, 7, 0.82], [151, 1, 7, 1.19], [7004, 1, 7, 2.22], [9507, 3, 7, 0.66], [11685, 2, 7, 3.35], [3840, 1, 7, 0.72], [3891, 1, 7, 1.37], [10, 2, 7, 0.82], [2328, 2, 7, 0.95], [159, 3, 8, 1.3], [146, 2, 7, 1.04], [2050, 3, 7, 3.31], [2497, 2, 7, 1.11], [5491, 2, 7, 1.08], [2055, 3, 7, 3.41], [434, 2, 7, 0.76], [143, 2, 7, 0.94], [3980, 4, 7, 2.36], [624, 2, 7, 1.48], [2054, 3, 7, 3.66], [990, 2, 7, 0.66], [12349, 1, 7, 5], [8649, 2, 7, 2.46], [8672, 2, 7, 2.68], [362, 2, 7, 0.91], [12870, 1, 7, 3.71], [2776, 2, 7, 1.86], [2057, 3, 7, 3.52], [8938, 2, 7, 1.32], [12350, 1, 7, 2.52], [12353, 1, 7, 5], [10574, 3, 8, 2.36], [7886, 4, 7, 0.73], [5165, 1, 7, 2.89], [10993, 2, 7, 0.75], [145, 2, 7, 0.88], [1006, 2, 7, 1.57], [1446, 2, 7, 2.04], [523, 2, 7, 1.05], [94, 4, 7, 4.08], [7084, 3, 7, 1.44], [2991, 3, 7, 4.3], [3975, 4, 7, 2.49], [12346, 1, 7, 2.77], [21793, 1, 7, 2.08], [142, 2, 7, 0.95], [11404, 2, 7, 0.72], [9760, 29, 7, 0.86], [20927, 1, 7, 1.77], [6158, 2, 7, 1.25], [5165, 2, 8, 2.91], [3981, 3, 21, 2.03], [417, 2, 7, 1.01], [2912, 1, 7, 2.32], [8939, 2, 7, 0.87], [1007, 2, 7, 1.28], [3982, 3, 17, 2.34], [2774, 2, 7, 1.52], [997, 2, 7, 4.76], [33, 1, 7, 2.44], [11772, 1, 7, 2.0], [956, 2, 7, 0.82], [286, 3, 7, 4.38], [7887, 4, 7, 1.75], [12344, 1, 7, 2.85], [6497, 1, 7, 2.41], [1492, 1, 7, 1.76], [12352, 1, 7, 2.56], [12345, 1, 7, 2.5], [8120, 3, 7, 1.2], [950, 1, 7, 0.67], [998, 2, 7, 4.76], [972, 3, 7, 2.77], [11767, 1, 7, 1.0], [12351, 1, 7, 3.59], [996, 2, 7, 3.58], [11769, 1, 7, 1.77], [11770, 1, 7, 0.85], [11490, 1, 7, 0.97], [2912, 2, 8, 2.19], [432, 3, 7, 0.86], [74, 1, 7, 1.8], [6496, 1, 7, 1.37], [410, 1, 7, 3.08], [411, 2, 7, 1.19], [389, 4, 7, 1.63], [35, 1, 7, 2.44], [7567, 3, 7, 2.9], [4253, 1, 7, 1.5], [140, 2, 7, 1.28], [22317, 3, 7, 0.92], [8673, 2, 7, 2.48], [2336, 3, 8, 0.68], [4176, 4, 7, 2.57], [8121, 3, 7, 0.86], [9372, 1, 7, 2.02], [2436, 4, 7, 1.72], [21269, 3, 7, 4.58], [10388, 2, 7, 2.26], [10936, 2, 7, 3.12], [8676, 2, 7, 1.52], [22247, 2, 7, 2.27], [12343, 1, 7, 5], [11085, 2, 8, 2.67], [8677, 3, 7, 1.66], [12269, 2, 7, 1.9], [9784, 1, 7, 0.96], [12526, 2, 7, 2.15], [12225, 1, 7, 2.2], [12346, 1, 519, 4.23], [21793, 1, 191, 3.53], [142, 2, 133, 2.39], [11404, 2, 91, 2.17], [9760, 29, 62, 2.31], [20927, 1, 68, 3.22], [6158, 2, 228, 2.69], [5165, 2, 328, 4.35], [3981, 3, 1386, 3.45], [417, 2, 133, 2.45], [2912, 1, 42, 3.77], [8939, 2, 166, 2.32], [1007, 2, 230, 2.73], [3982, 3, 679, 3.79], [2774, 2, 175, 2.96], [997, 2, 201, 6], [33, 1, 96, 3.89], [11772, 1, 188, 3.44], [956, 2, 92, 2.26], [286, 3, 120, 5.82], [12344, 1, 519, 4.31], [6497, 1, 32, 3.86], [1492, 1, 32, 3.21], [12352, 1, 519, 4.02], [12345, 1, 519, 3.96], [8120, 3, 206, 2.65], [950, 1, 41, 2.03], [998, 2, 201, 6], [972, 3, 508, 4.22], [11767, 1, 139, 2.45], [12351, 1, 519, 5.05], [996, 2, 194, 5.03], [11769, 1, 139, 3.22], [11770, 1, 188, 2.29], [11490, 1, 94, 2.42], [2912, 2, 334, 3.64], [432, 3, 263, 2.31], [74, 1, 174, 3.25], [6496, 1, 35, 2.82], [410, 1, 89, 4.53], [411, 2, 94, 2.64], [389, 4, 179, 3.07], [35, 1, 96, 3.89], [7567, 3, 60, 4.35], [4253, 1, 144, 2.95], [140, 2, 78, 2.73], [22317, 3, 272, 2.38], [8673, 2, 240, 3.93], [2336, 3, 503, 2.13], [4176, 4, 415, 4.02], [8121, 3, 253, 2.31], [9372, 1, 195, 3.47], [2436, 4, 99, 3.17], [21269, 3, 253, 6], [10388, 2, 185, 3.71], [10936, 2, 115, 4.57], [8676, 2, 246, 2.97], [22247, 2, 243, 3.72], [12343, 1, 519, 6], [11085, 2, 460, 4.13], [8677, 3, 254, 3.11], [12269, 2, 54, 3.35], [9784, 1, 63, 2.41], [12526, 2, 234, 3.59], [12225, 1, 141, 3.65]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 19, 4.18], [305, 2, 7, 0.88], [130, 1, 7, 1.86], [2328, 2, 7, 1.85], [141, 2, 7, 0.88], [2778, 2, 11, 1.18], [8650, 2, 9, 2.32], [5491, 2, 7, 1.18], [2327, 2, 7, 1.82], [8672, 2, 10, 2.44], [6936, 2, 9, 2.96], [362, 2, 7, 1.99], [143, 2, 7, 0.93], [11681, 2, 13, 3.92], [145, 2, 7, 0.93], [205, 2, 7, 0.74], [5493, 2, 7, 1.56], [146, 2, 7, 1.04], [589, 2, 7, 0.73], [75, 2, 7, 1.79], [11838, 2, 7, 1.02], [523, 2, 7, 1.22], [8648, 2, 7, 2.53], [2049, 3, 14, 1.18], [1124, 2, 10, 1.74], [1005, 2, 7, 0.72], [8853, 2, 7, 2.88], [12721, 2, 11, 1.45], [615, 2, 7, 2.13], [206, 2, 7, 0.74], [326, 2, 7, 2.08], [8915, 2, 7, 3.38], [8673, 2, 7, 2.7], [144, 2, 7, 0.84], [8675, 2, 9, 1.84], [990, 2, 7, 1.65], [434, 2, 7, 1.29], [11739, 2, 7, 3.48], [88, 10, 14, 2.51], [2776, 2, 7, 2.35], [142, 2, 7, 1.05], [435, 2, 7, 0.98], [151, 1, 7, 1.31], [8676, 2, 7, 1.29], [6158, 2, 8, 2.0], [2424, 29, 7, 3.84], [8649, 2, 7, 2.53], [2423, 29, 7, 4.15], [11738, 2, 7, 3.27], [2497, 2, 7, 0.66], [2424, 80, 7, 3.81], [7704, 2, 7, 2.28], [1413, 15, 7, 0.99], [3670, 2, 9, 4.54], [10574, 3, 9, 2.49], [2423, 80, 7, 4.15], [3, 2, 7, 1.94], [7705, 2, 7, 2.28], [2859, 15, 7, 1.59], [11836, 2, 7, 0.86], [378, 2, 7, 3.17], [12720, 2, 7, 1.45], [412, 1, 7, 1.99], [7706, 2, 7, 2.28], [22316, 3, 7, 0.85], [2055, 3, 7, 0.84], [10149, 3, 21, 2.35], [74, 1, 7, 3.84], [3478, 2, 7, 2.36], [1414, 15, 7, 0.91], [2774, 2, 7, 2.72], [6497, 1, 7, 0.85], [307, 2, 7, 1.61], [60, 3, 8, 2.04], [12526, 2, 7, 3.89], [411, 2, 7, 0.74], [11089, 1, 7, 0.75], [418, 2, 7, 1.08], [346, 3, 8, 0.74], [7004, 1, 7, 1.03], [1409, 15, 7, 0.86], [413, 1, 7, 3.3], [7036, 1, 7, 1.74], [13034, 3, 9, 2.15], [14037, 3, 7, 0.85], [3893, 1, 7, 3.83], [20252, 2, 7, 0.68], [159, 3, 9, 1.37], [11844, 2, 7, 0.78], [8274, 3, 7, 1.06], [439, 1, 7, 0.97], [7084, 3, 7, 0.67], [13260, 29, 7, 1.22], [6097, 80, 7, 5], [6952, 1, 7, 2.01], [18964, 1, 7, 0.66], [9784, 1, 7, 2.62], [1050, 2, 7, 0.66], [7707, 2, 7, 1.32], [94, 4, 7, 4.31], [1490, 1, 7, 1.68], [11490, 1, 7, 1.02], [22317, 3, 8, 0.85], [1492, 1, 7, 1.2], [1413, 16, 7, 0.99], [3889, 1, 7, 3.83], [7708, 2, 7, 2.28], [1243, 2, 7, 0.84], [3495, 3, 17, 1.77], [565, 2, 7, 0.84], [414, 1, 7, 3.3], [7703, 2, 7, 2.28], [11491, 2, 7, 1.35], [21793, 1, 7, 3.5], [410, 1, 7, 0.88], [22558, 3, 7, 1.74], [2422, 80, 7, 2.12], [6098, 80, 7, 4.06], [149, 2, 7, 2.73], [2805, 137, 9, 2.93], [6630, 3, 7, 3.72], [11504, 2, 7, 1.13], [3674, 2, 7, 2.83], [147, 1, 7, 2.73], [247, 1, 7, 0.84], [2331, 1, 7, 1.65], [3430, 15, 7, 1.99], [13023, 3, 10, 1.0], [345, 3, 7, 1.39], [416, 1, 7, 2.93], [6098, 29, 7, 4.06], [23275, 2, 7, 0.71], [11671, 1, 7, 2.17], [74, 1, 199, 5.63], [3478, 2, 75, 4.14], [1414, 15, 99, 2.69], [2774, 2, 204, 4.5], [6497, 1, 38, 2.63], [307, 2, 148, 3.39], [60, 3, 808, 3.83], [12526, 2, 271, 5.68], [411, 2, 109, 2.53], [11089, 1, 173, 2.53], [418, 2, 141, 2.87], [346, 3, 633, 2.51], [7004, 1, 79, 2.82], [1409, 15, 58, 2.64], [413, 1, 85, 5.08], [7036, 1, 127, 3.52], [13034, 3, 589, 3.94], [14037, 3, 115, 1.92], [3893, 1, 122, 5.61], [20252, 2, 92, 2.46], [159, 3, 706, 3.16], [11844, 2, 276, 2.57], [439, 1, 87, 2.75], [13260, 29, 72, 3.01], [6097, 80, 66, 6], [6952, 1, 188, 3.79], [18964, 1, 34, 2.09], [9784, 1, 71, 4.41], [7707, 2, 175, 3.1], [94, 4, 115, 6], [1490, 1, 50, 3.46], [11490, 1, 109, 2.8], [22317, 3, 315, 2.63], [1492, 1, 37, 2.99], [1413, 16, 50, 2.77], [3889, 1, 122, 5.61], [7708, 2, 175, 4.06], [1243, 2, 99, 2.62], [3495, 3, 960, 3.54], [565, 2, 175, 2.63], [414, 1, 85, 5.08], [7703, 2, 175, 4.06], [11491, 2, 141, 3.13], [21793, 1, 241, 5.28], [410, 1, 53, 2.3], [22558, 3, 162, 2.8], [2422, 80, 180, 3.9], [6098, 80, 73, 5.84], [149, 2, 87, 4.51], [2805, 137, 182, 4.71], [6630, 3, 93, 5.5], [11504, 2, 141, 2.92], [3674, 2, 255, 4.62], [147, 1, 87, 4.51], [247, 1, 89, 2.63], [2331, 1, 117, 3.43], [3430, 15, 69, 3.77], [13023, 3, 598, 2.78], [345, 3, 295, 3.17], [416, 1, 85, 4.71], [6098, 29, 37, 5.84], [23275, 2, 36, 2.14], [11671, 1, 300, 3.96]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 10, 2.68], [305, 2, 7, 1.49], [326, 2, 9, 1.63], [3, 2, 7, 0.86], [205, 2, 7, 0.68], [6935, 2, 18, 3.0], [130, 1, 7, 1.96], [143, 2, 7, 1.05], [75, 2, 7, 1.6], [144, 2, 7, 0.9], [12721, 2, 10, 1.69], [593, 2, 10, 0.74], [145, 2, 7, 0.96], [8915, 2, 10, 0.86], [2778, 2, 7, 1.07], [1776, 1, 7, 1.14], [146, 2, 7, 0.96], [206, 2, 7, 0.68], [6936, 2, 10, 2.47], [8648, 2, 7, 3.54], [151, 1, 7, 0.67], [2328, 2, 7, 1.55], [8650, 2, 7, 3.82], [5151, 2, 7, 1.87], [248, 1, 7, 0.68], [2050, 3, 7, 2.04], [88, 10, 17, 3.35], [7886, 4, 7, 0.84], [74, 1, 7, 3.53], [1446, 2, 7, 1.43], [362, 2, 7, 0.89], [7004, 1, 7, 0.68], [2057, 3, 7, 0.87], [2991, 3, 7, 4.18], [1007, 2, 10, 0.81], [2055, 3, 7, 0.78], [147, 1, 7, 2.5], [8649, 2, 7, 3.91], [3889, 1, 7, 0.8], [11234, 2, 9, 1.26], [10, 2, 7, 3.83], [7005, 1, 7, 0.69], [1429, 2, 7, 1.07], [345, 3, 7, 1.04], [307, 2, 7, 1.06], [12870, 1, 7, 4.27], [5081, 2, 7, 1.26], [10825, 21, 13, 2.21], [7036, 1, 7, 1.74], [57, 1, 7, 0.78], [1504, 2, 7, 1.0], [3478, 2, 7, 2.13], [1006, 2, 7, 1.09], [10149, 3, 21, 1.68], [7084, 3, 7, 2.81], [3891, 1, 7, 2.13], [21793, 1, 7, 4.57], [167, 3, 7, 2.27], [94, 4, 7, 2.1], [411, 2, 7, 0.68], [308, 1, 7, 4.48], [9827, 3, 7, 0.88], [3893, 1, 7, 2.13], [79, 1, 7, 0.66], [432, 3, 7, 1.15], [23, 1, 7, 1.24], [8677, 3, 9, 1.26], [11681, 2, 11, 4.55], [33, 1, 7, 2.45], [12225, 1, 7, 1.7], [96, 11, 24, 1.07], [1490, 1, 7, 0.67], [148, 1, 7, 4.65], [11737, 2, 7, 1.03], [1124, 2, 9, 1.43], [6158, 2, 8, 0.86], [1243, 2, 7, 1.03], [8853, 2, 11, 3.05], [9760, 29, 7, 1.35], [412, 1, 7, 2.06], [5812, 3, 8, 1.39], [10574, 3, 9, 2.6], [2336, 3, 9, 1.88], [22247, 2, 11, 2.21], [20256, 2, 7, 0.96], [20927, 1, 7, 0.89], [8651, 2, 7, 1.99], [229, 1, 7, 3.82], [35, 1, 7, 2.45], [5208, 3, 11, 1.25], [201, 3, 7, 1.04], [45, 2, 7, 1.2], [1767, 25, 7, 1.09], [25, 1, 7, 1.4], [8676, 2, 10, 2.68], [159, 3, 9, 2.21], [9069, 1, 7, 1.92], [11490, 1, 7, 0.8], [413, 1, 7, 1.1], [3495, 3, 21, 2.26], [998, 2, 7, 3.72], [95, 3, 17, 0.96], [140, 2, 7, 1.17], [950, 1, 7, 0.96], [149, 2, 7, 2.62], [5946, 1, 7, 1.38], [3980, 4, 7, 2.46], [9372, 1, 7, 2.23], [1126, 2, 7, 0.92], [1766, 25, 7, 1.02], [2775, 2, 7, 1.07], [11489, 1, 7, 1.49], [490, 1, 7, 0.98], [1413, 15, 7, 0.91], [3670, 2, 7, 3.66], [20255, 2, 7, 0.96], [1070, 7, 15, 0.81], [8898, 3, 7, 2.78], [107, 2, 7, 2.15], [974, 3, 7, 1.64], [9691, 1, 7, 1.42], [20498, 1, 7, 1.8], [11954, 1, 7, 0.87], [8674, 2, 7, 1.7], [14037, 3, 7, 0.8], [823, 1, 7, 0.92], [1519, 3, 24, 1.03], [12353, 1, 7, 5], [11739, 2, 7, 1.08], [9784, 1, 7, 1.11], [14017, 3, 7, 1.91], [972, 3, 8, 1.13], [5209, 3, 7, 0.98], [11681, 2, 226, 5.85], [33, 1, 95, 3.75], [12225, 1, 71, 2.57], [96, 11, 722, 2.38], [1490, 1, 43, 1.98], [148, 1, 75, 5.96], [11737, 2, 49, 2.34], [1124, 2, 158, 2.74], [6158, 2, 222, 2.16], [1243, 2, 83, 2.33], [8853, 2, 242, 4.36], [9760, 29, 61, 2.66], [412, 1, 71, 3.36], [5812, 3, 501, 2.69], [10574, 3, 424, 3.91], [2336, 3, 493, 3.19], [22247, 2, 240, 3.52], [20256, 2, 80, 2.27], [20927, 1, 68, 2.2], [8651, 2, 189, 3.3], [229, 1, 69, 5.13], [35, 1, 71, 3.61], [5208, 3, 479, 2.56], [201, 3, 257, 2.35], [45, 2, 92, 2.5], [1767, 25, 146, 2.4], [25, 1, 95, 2.71], [8676, 2, 242, 3.98], [159, 3, 593, 3.52], [9069, 1, 104, 3.22], [11490, 1, 93, 2.11], [413, 1, 73, 2.41], [3495, 3, 817, 3.57], [998, 2, 202, 5.02], [95, 3, 958, 2.27], [140, 2, 77, 2.47], [950, 1, 51, 2.27], [149, 2, 75, 3.93], [5946, 1, 105, 2.68], [3980, 4, 408, 3.77], [9372, 1, 192, 3.54], [1126, 2, 194, 2.23], [1766, 25, 159, 2.33], [2775, 2, 133, 2.37], [11489, 1, 93, 2.8], [490, 1, 50, 2.29], [1413, 15, 85, 2.22], [3670, 2, 200, 4.97], [20255, 2, 80, 2.27], [1070, 7, 503, 2.12], [8898, 3, 250, 4.08], [107, 2, 41, 3.46], [974, 3, 126, 2.95], [9691, 1, 64, 2.72], [20498, 1, 83, 3.11], [11954, 1, 171, 2.18], [8674, 2, 242, 3.01], [14037, 3, 147, 1.68], [823, 1, 34, 2.23], [1519, 3, 1423, 2.34], [12353, 1, 514, 6], [11739, 2, 49, 2.39], [9784, 1, 61, 2.42], [14017, 3, 166, 3.21], [972, 3, 503, 2.44], [5209, 3, 479, 2.29]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 10, 2.91], [305, 2, 7, 1.49], [6935, 2, 19, 3.17], [326, 2, 8, 0.98], [141, 2, 7, 0.72], [144, 2, 7, 1.0], [151, 1, 7, 0.84], [362, 2, 7, 0.99], [12721, 2, 10, 1.92], [593, 2, 11, 0.81], [146, 2, 7, 1.07], [145, 2, 7, 0.8], [2328, 2, 7, 1.01], [206, 2, 7, 0.71], [8648, 2, 7, 2.52], [8915, 2, 9, 0.7], [143, 2, 7, 1.06], [6936, 2, 10, 2.47], [990, 2, 7, 1.16], [20252, 2, 7, 0.91], [8650, 2, 7, 3.16], [5151, 2, 7, 1.0], [1007, 2, 10, 0.81], [2778, 2, 7, 1.06], [248, 1, 7, 0.71], [88, 10, 14, 2.25], [2050, 3, 7, 1.39], [76, 2, 7, 2.29], [8649, 2, 7, 2.86], [22247, 2, 9, 2.97], [10149, 3, 25, 3.26], [10, 2, 9, 3.05], [2054, 3, 7, 2.83], [8677, 3, 8, 3.08], [412, 1, 7, 1.67], [2055, 3, 7, 2.83], [361, 2, 7, 2.22], [13028, 3, 7, 0.92], [7004, 1, 7, 0.73], [413, 1, 7, 0.73], [411, 2, 7, 0.88], [10825, 21, 14, 0.68], [8938, 2, 8, 0.62], [11681, 2, 10, 4.88], [1446, 2, 7, 1.56], [307, 2, 7, 1.07], [7084, 3, 7, 2.22], [3478, 2, 7, 2.36], [1429, 2, 7, 0.98], [3495, 3, 21, 2.26], [1006, 2, 7, 1.09], [74, 1, 7, 2.52], [5081, 2, 7, 1.0], [140, 2, 7, 0.86], [308, 1, 7, 4.48], [1492, 1, 7, 0.7], [7036, 1, 7, 2.48], [7005, 1, 7, 0.73], [167, 3, 7, 2.49], [45, 2, 7, 3.67], [10574, 3, 9, 0.71], [9827, 3, 7, 0.88], [1124, 2, 9, 1.74], [12870, 1, 7, 4.27], [8676, 2, 7, 2.54], [168, 3, 7, 1.46], [94, 4, 7, 2.54], [1504, 2, 7, 0.83], [11234, 2, 7, 1.26], [415, 1, 7, 1.84], [8651, 2, 7, 2.24], [148, 1, 7, 2.34], [8853, 2, 11, 3.05], [432, 3, 7, 1.15], [6097, 29, 7, 3.43], [416, 1, 7, 2.11], [23, 1, 7, 1.24], [6097, 80, 7, 3.42], [20256, 2, 7, 0.64], [490, 1, 7, 0.93], [95, 3, 21, 0.92], [5208, 3, 13, 1.06], [3980, 4, 7, 2.46], [6098, 29, 7, 3.72], [14017, 3, 7, 1.23], [6098, 80, 7, 3.72], [414, 1, 7, 0.73], [1070, 7, 13, 0.73], [9069, 1, 7, 2.01], [8898, 3, 7, 3.98], [1126, 2, 7, 0.92], [126, 2, 7, 0.86], [22554, 10, 15, 0.84], [13034, 3, 8, 2.48], [9829, 3, 7, 0.76], [20255, 2, 7, 0.72], [20498, 1, 7, 1.94], [159, 3, 8, 1.08], [5086, 1, 7, 2.14], [5513, 2, 7, 0.88], [9784, 1, 7, 1.37], [12924, 1, 7, 1.04], [7567, 3, 7, 3.39], [22317, 3, 8, 0.85], [229, 1, 7, 3.82], [13260, 29, 7, 0.78], [1413, 15, 7, 0.83], [5811, 3, 7, 2.16], [11085, 2, 7, 0.83], [8557, 3, 7, 1.53], [5813, 3, 7, 1.98], [9082, 3, 24, 1.19], [14018, 3, 7, 0.91], [3049, 3, 7, 3.61], [9372, 1, 7, 2.03], [20498, 3, 8, 1.9], [9691, 1, 7, 2.81], [4076, 3, 7, 4.16], [506, 1, 7, 2.34], [524, 1, 7, 1.67], [470, 1, 7, 0.98], [8943, 3, 7, 3.68], [2423, 80, 7, 3.6], [11454, 2, 9, 2.89], [20486, 3, 8, 2.87], [2775, 2, 7, 1.06], [13023, 3, 8, 2.44], [1622, 1, 10, 0.74], [5584, 3, 7, 0.92], [2424, 80, 7, 4.51], [11768, 1, 7, 0.86], [3900, 3, 7, 2.17], [20486, 1, 7, 2.87], [1504, 2, 189, 1.98], [11234, 2, 170, 2.41], [415, 1, 79, 2.99], [8651, 2, 207, 3.39], [148, 1, 80, 3.49], [8853, 2, 262, 4.2], [432, 3, 281, 2.3], [6097, 29, 31, 4.58], [416, 1, 79, 3.26], [23, 1, 103, 2.4], [6097, 80, 62, 4.58], [20256, 2, 86, 1.79], [490, 1, 55, 2.08], [95, 3, 1039, 2.08], [5208, 3, 392, 2.09], [3980, 4, 443, 3.61], [6098, 29, 34, 4.87], [14017, 3, 181, 2.39], [6098, 80, 68, 4.87], [414, 1, 79, 1.89], [1070, 7, 549, 1.89], [9069, 1, 112, 3.16], [8898, 3, 260, 5.13], [1126, 2, 211, 2.07], [126, 2, 84, 2.01], [22554, 10, 347, 1.99], [13034, 3, 540, 3.64], [9829, 3, 64, 1.91], [20255, 2, 86, 1.87], [20498, 1, 90, 3.09], [159, 3, 651, 2.24], [5086, 1, 169, 3.29], [5513, 2, 69, 2.04], [9784, 1, 66, 2.52], [12924, 1, 49, 2.19], [7567, 3, 64, 4.54], [22317, 3, 291, 2.0], [229, 1, 75, 4.97], [13260, 29, 67, 1.93], [1413, 15, 92, 1.98], [5811, 3, 540, 3.32], [11085, 2, 507, 1.97], [8557, 3, 186, 2.68], [5813, 3, 540, 3.14], [9082, 3, 2299, 2.38], [14018, 3, 181, 2.07], [3049, 3, 126, 4.77], [9372, 1, 209, 3.19], [20498, 3, 540, 3.06], [9691, 1, 69, 3.96], [4076, 3, 182, 5.31], [506, 1, 80, 3.49], [524, 1, 77, 2.82], [470, 1, 31, 2.13], [8943, 3, 361, 4.83], [2423, 80, 165, 4.75], [11454, 2, 308, 4.05], [20486, 3, 546, 4.02], [2775, 2, 144, 2.21], [13023, 3, 540, 3.6], [1622, 1, 50, 1.51], [5584, 3, 231, 2.08], [2424, 80, 152, 5.66], [11768, 1, 151, 2.01], [3900, 3, 40, 3.32], [20486, 1, 91, 4.02]]</t>
+  </si>
+  <si>
+    <t>[[11685, 2, 7, 3.35], [6935, 2, 10, 2.81], [326, 2, 7, 1.94], [130, 1, 7, 1.94], [8648, 2, 7, 2.71], [144, 2, 7, 0.86], [593, 2, 9, 1.22], [2327, 2, 7, 0.98], [589, 2, 8, 0.61], [143, 2, 7, 0.94], [205, 2, 7, 0.93], [2328, 2, 7, 0.95], [6936, 2, 9, 3.19], [11681, 2, 9, 3.34], [8650, 2, 7, 2.48], [5493, 2, 7, 1.5], [305, 2, 7, 0.94], [2778, 2, 7, 1.07], [206, 2, 7, 0.82], [141, 2, 7, 1.58], [146, 2, 7, 1.04], [2049, 3, 14, 0.87], [88, 10, 15, 0.85], [7004, 1, 7, 2.22], [615, 2, 7, 1.6], [145, 2, 7, 0.88], [7036, 1, 7, 2.27], [9507, 3, 7, 0.66], [8853, 2, 7, 2.37], [8649, 2, 7, 2.46], [1446, 2, 7, 2.04], [5491, 2, 7, 1.08], [362, 2, 7, 0.91], [434, 2, 7, 0.76], [1006, 2, 7, 1.57], [11737, 2, 7, 1.26], [2055, 3, 7, 3.41], [8938, 2, 7, 1.32], [990, 2, 7, 0.66], [12350, 1, 7, 2.52], [616, 2, 7, 1.13], [2050, 3, 7, 3.31], [417, 2, 7, 1.01], [3840, 1, 7, 0.72], [1007, 2, 7, 1.28], [523, 2, 7, 1.05], [159, 3, 8, 1.3], [12870, 1, 7, 3.71], [13028, 3, 7, 1.12], [12353, 1, 7, 5], [1504, 2, 7, 0.9], [2057, 3, 7, 3.52], [20927, 1, 7, 1.77], [10574, 3, 8, 2.36], [3, 2, 7, 0.69], [12349, 1, 7, 5], [7005, 1, 7, 1.73], [142, 2, 7, 0.95], [12346, 1, 7, 2.77], [7084, 3, 7, 1.44], [624, 2, 7, 1.48], [2991, 3, 7, 4.3], [10, 2, 7, 0.82], [9760, 29, 7, 0.86], [140, 2, 7, 1.28], [2054, 3, 7, 3.66], [21798, 1, 7, 1.3], [2775, 2, 7, 1.07], [8939, 2, 7, 0.87], [3982, 3, 17, 2.34], [21793, 1, 7, 2.08], [1429, 2, 7, 0.91], [96, 11, 22, 1.1], [6158, 2, 7, 1.25], [12269, 2, 7, 1.9], [9372, 1, 7, 2.02], [5165, 2, 8, 2.91], [12352, 1, 7, 2.56], [84, 2, 7, 1.65], [1126, 2, 7, 1.45], [10388, 2, 7, 2.26], [972, 3, 7, 2.77], [411, 2, 7, 1.19], [98, 11, 16, 0.91], [5165, 1, 7, 2.89], [2912, 1, 7, 2.32], [8898, 3, 7, 5], [2776, 2, 7, 1.86], [8672, 2, 7, 2.68], [413, 1, 7, 2.28], [12344, 1, 7, 2.85], [410, 1, 7, 3.08], [12351, 1, 7, 3.59], [12343, 1, 7, 5], [10386, 2, 7, 1.86], [13928, 1, 7, 0.86], [418, 2, 7, 0.92], [1492, 1, 7, 1.76], [12345, 1, 7, 2.5], [9784, 1, 7, 0.96], [412, 1, 7, 0.92], [11490, 1, 7, 0.97], [8677, 3, 7, 1.66], [2912, 2, 8, 2.19], [308, 1, 7, 3.28], [307, 2, 7, 0.91], [7567, 3, 7, 2.9], [159, 1, 7, 1.18], [13283, 1, 7, 4.26], [432, 3, 7, 0.86], [414, 1, 7, 1.21], [286, 3, 7, 4.38], [11770, 1, 7, 0.85], [33, 1, 7, 2.44], [5490, 2, 7, 0.83], [22317, 3, 7, 0.92], [10407, 10, 10, 3.52], [35, 1, 7, 2.44], [10410, 10, 10, 3.25], [10780, 10, 7, 2.99], [335, 3, 15, 0.64], [6497, 1, 7, 2.41], [972, 1, 7, 2.77], [10387, 2, 7, 1.91], [3478, 2, 7, 2.19], [74, 1, 7, 1.8], [9691, 1, 7, 1.94], [12347, 1, 7, 2.67], [12271, 2, 7, 1.86], [20686, 1, 7, 2.46], [2497, 2, 7, 1.11], [2331, 1, 7, 1.69], [8897, 3, 7, 5], [2775, 2, 135, 2.51], [8939, 2, 166, 2.32], [3982, 3, 679, 3.79], [21793, 1, 191, 3.53], [1429, 2, 131, 2.36], [96, 11, 733, 2.55], [6158, 2, 228, 2.69], [12269, 2, 54, 3.35], [9372, 1, 195, 3.47], [5165, 2, 328, 4.35], [12352, 1, 519, 4.02], [84, 2, 57, 3.1], [1126, 2, 196, 2.9], [10388, 2, 185, 3.71], [972, 3, 508, 4.22], [411, 2, 94, 2.64], [98, 11, 717, 2.35], [5165, 1, 41, 4.34], [2912, 1, 42, 3.77], [8898, 3, 241, 6], [2776, 2, 135, 3.31], [8672, 2, 246, 4.13], [413, 1, 74, 3.73], [12344, 1, 519, 4.31], [410, 1, 89, 4.53], [12351, 1, 519, 5.05], [12343, 1, 519, 6], [10386, 2, 185, 3.31], [13928, 1, 41, 2.31], [418, 2, 122, 2.37], [1492, 1, 32, 3.21], [12345, 1, 519, 3.96], [9784, 1, 63, 2.41], [412, 1, 72, 2.36], [11490, 1, 94, 2.42], [8677, 3, 254, 3.11], [2912, 2, 334, 3.64], [308, 1, 138, 4.73], [307, 2, 128, 2.36], [7567, 3, 60, 4.35], [159, 1, 34, 2.63], [13283, 1, 273, 5.7], [432, 3, 263, 2.31], [414, 1, 74, 2.65], [286, 3, 120, 5.82], [11770, 1, 188, 2.29], [33, 1, 96, 3.89], [5490, 2, 93, 2.28], [22317, 3, 272, 2.38], [10407, 10, 1002, 4.99], [35, 1, 96, 3.89], [10410, 10, 1002, 4.71], [10780, 10, 315, 4.44], [335, 3, 1163, 2.07], [6497, 1, 32, 3.86], [972, 1, 85, 4.22], [10387, 2, 185, 3.36], [3478, 2, 65, 3.63], [74, 1, 174, 3.25], [9691, 1, 52, 3.29], [12347, 1, 519, 4.12], [12271, 2, 54, 3.31], [20686, 1, 527, 3.9], [2497, 2, 175, 2.55], [2331, 1, 102, 3.13], [8897, 3, 241, 6]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 10, 1.91], [141, 2, 7, 0.88], [362, 2, 7, 0.89], [361, 2, 7, 1.08], [6935, 2, 19, 4.42], [12721, 2, 11, 2.8], [206, 2, 7, 1.04], [2049, 3, 14, 0.75], [8676, 2, 7, 1.1], [1504, 2, 11, 0.95], [8675, 2, 9, 1.39], [417, 2, 7, 0.87], [6936, 2, 9, 3.14], [3, 2, 7, 1.13], [305, 2, 7, 0.88], [523, 2, 7, 1.22], [151, 1, 7, 1.31], [22247, 2, 7, 1.83], [8650, 2, 9, 2.15], [142, 2, 7, 1.05], [8648, 2, 7, 2.02], [2328, 2, 7, 1.85], [2776, 2, 7, 0.88], [8853, 2, 7, 3.03], [616, 2, 7, 0.96], [11739, 2, 7, 2.7], [2327, 2, 7, 1.82], [411, 2, 7, 0.7], [12352, 1, 7, 2.89], [589, 2, 7, 0.68], [143, 2, 7, 1.56], [950, 1, 7, 0.67], [146, 2, 7, 1.14], [412, 1, 7, 2.2], [8674, 2, 7, 2.25], [12353, 1, 7, 2.89], [145, 2, 7, 0.9], [583, 2, 7, 1.85], [2805, 137, 9, 3.51], [6497, 1, 7, 0.85], [326, 2, 7, 1.85], [418, 2, 7, 0.85], [11738, 2, 7, 2.48], [10574, 3, 9, 2.49], [6097, 80, 7, 2.95], [9784, 1, 7, 1.57], [10149, 3, 21, 1.56], [6097, 29, 7, 2.95], [75, 2, 7, 1.88], [11234, 2, 8, 1.32], [12344, 1, 7, 1.3], [2057, 3, 7, 0.64], [1413, 15, 7, 0.94], [20252, 2, 7, 0.91], [11504, 2, 7, 0.8], [12269, 2, 7, 1.11], [2054, 3, 7, 0.91], [8915, 2, 7, 0.75], [6496, 1, 7, 0.91], [1492, 1, 7, 1.2], [247, 1, 7, 0.84], [2774, 2, 7, 3.11], [6098, 80, 7, 3.83], [12346, 1, 7, 2.89], [3429, 15, 7, 0.85], [1886, 2, 7, 0.92], [416, 1, 7, 1.74], [944, 15, 7, 0.87], [6098, 29, 7, 3.83], [2859, 15, 7, 1.3], [3934, 5, 8, 0.94], [1414, 15, 7, 0.94], [201, 3, 7, 2.66], [21793, 1, 7, 3.5], [3670, 2, 9, 4.54], [159, 3, 9, 1.37], [20555, 2, 7, 1.03], [6158, 2, 8, 1.76], [2049, 1, 7, 0.75], [3478, 2, 7, 2.36], [20686, 1, 7, 1.79], [7084, 3, 7, 3.6], [9785, 1, 7, 2.09], [12526, 2, 7, 3.89], [3430, 15, 7, 1.7], [8599, 1, 7, 1.94], [9342, 2, 8, 0.64], [2050, 3, 7, 0.64], [8938, 2, 7, 1.0], [4253, 1, 7, 1.0], [1413, 16, 7, 0.93], [1703, 2, 7, 1.53], [9760, 29, 7, 1.1], [11887, 2, 8, 0.62], [11885, 2, 7, 0.68], [107, 2, 7, 2.33], [415, 1, 7, 1.74], [11811, 1, 7, 1.93], [11770, 1, 7, 1.99], [436, 2, 7, 0.94], [94, 4, 7, 4.03], [11490, 1, 7, 0.88], [107, 7, 8, 2.38], [3673, 2, 7, 3.82], [2438, 2, 8, 2.28], [2421, 80, 7, 2.62], [11844, 2, 7, 0.78], [11671, 1, 7, 2.17], [5939, 3, 7, 0.72], [4940, 1, 7, 0.79], [1309, 1, 7, 3.32], [11771, 1, 7, 3.17], [140, 2, 7, 1.24], [11160, 1, 7, 0.81], [3495, 3, 17, 1.77], [7036, 1, 7, 0.87], [1668, 1, 7, 1.86], [409, 1, 7, 0.77], [9491, 21, 16, 0.95], [5813, 3, 8, 1.72], [11954, 1, 7, 0.77], [105, 3, 7, 0.81], [12347, 1, 7, 1.57], [23920, 2, 7, 0.77], [12764, 2, 8, 1.28], [9690, 1, 7, 0.94], [19687, 1, 7, 2.21], [11808, 1, 7, 0.8], [2421, 29, 7, 2.68], [2108, 3, 8, 0.93], [5811, 3, 8, 1.72], [8274, 3, 7, 4.22], [11180, 1, 7, 1.1], [6098, 29, 37, 5.62], [2859, 15, 69, 3.09], [3934, 5, 583, 2.73], [1414, 15, 99, 2.72], [201, 3, 297, 4.45], [21793, 1, 241, 5.28], [3670, 2, 235, 6], [159, 3, 706, 3.16], [20555, 2, 57, 2.81], [6158, 2, 258, 3.54], [2049, 1, 15, 2.36], [3478, 2, 75, 4.14], [20686, 1, 610, 3.58], [7084, 3, 128, 5.39], [9785, 1, 72, 3.87], [12526, 2, 271, 5.68], [3430, 15, 69, 3.48], [8599, 1, 144, 3.73], [9342, 2, 156, 1.71], [2050, 3, 161, 1.72], [8938, 2, 191, 2.78], [4253, 1, 171, 2.78], [1413, 16, 50, 2.71], [1703, 2, 163, 3.32], [9760, 29, 71, 2.88], [11887, 2, 97, 2.05], [11885, 2, 97, 2.11], [107, 2, 48, 4.11], [415, 1, 85, 3.52], [11811, 1, 449, 3.71], [11770, 1, 215, 3.77], [436, 2, 107, 2.72], [94, 4, 118, 5.81], [11490, 1, 109, 2.66], [107, 7, 238, 4.16], [3673, 2, 235, 5.61], [2438, 2, 623, 4.06], [2421, 80, 208, 4.41], [11844, 2, 276, 2.57], [11671, 1, 300, 3.96], [5939, 3, 134, 2.16], [4940, 1, 121, 2.57], [1309, 1, 54, 5.1], [11771, 1, 212, 4.95], [140, 2, 91, 3.02], [11160, 1, 516, 2.59], [3495, 3, 960, 3.54], [7036, 1, 127, 2.65], [1668, 1, 102, 3.64], [409, 1, 46, 2.48], [9491, 21, 2130, 2.76], [5813, 3, 586, 3.5], [11954, 1, 202, 2.56], [105, 3, 205, 2.52], [12347, 1, 613, 3.35], [23920, 2, 106, 2.56], [12764, 2, 737, 3.07], [9690, 1, 75, 2.72], [19687, 1, 30, 3.99], [11808, 1, 486, 2.57], [2421, 29, 42, 4.46], [2108, 3, 272, 2.71], [5811, 3, 586, 3.5], [11180, 1, 87, 2.89]]</t>
+  </si>
+  <si>
+    <t>[[2327, 2, 7, 0.96], [6935, 2, 11, 3.9], [305, 2, 7, 0.82], [2778, 2, 7, 0.93], [144, 2, 7, 0.99], [130, 1, 7, 1.86], [589, 2, 8, 0.87], [143, 2, 7, 0.81], [2328, 2, 7, 1.39], [6936, 2, 7, 3.27], [8648, 2, 7, 3.08], [2775, 2, 7, 0.93], [326, 2, 7, 2.74], [8650, 2, 7, 2.8], [593, 2, 9, 0.94], [145, 2, 7, 0.93], [146, 2, 7, 1.05], [3840, 1, 7, 1.45], [7036, 1, 7, 3.03], [2776, 2, 7, 1.13], [2049, 3, 10, 0.87], [615, 2, 7, 3.0], [616, 2, 7, 2.33], [88, 10, 16, 2.1], [151, 1, 7, 1.31], [141, 2, 7, 0.72], [7004, 1, 7, 2.28], [11681, 2, 11, 4.17], [1124, 2, 7, 1.46], [1446, 2, 7, 1.82], [9760, 29, 7, 1.24], [8853, 2, 7, 3.35], [5491, 2, 7, 1.52], [990, 2, 7, 1.45], [1007, 2, 7, 0.85], [159, 3, 8, 1.18], [362, 2, 7, 0.95], [1504, 2, 7, 0.69], [9372, 1, 7, 3.18], [8649, 2, 7, 3.15], [12870, 1, 7, 3.19], [3893, 1, 7, 0.71], [2912, 1, 7, 2.33], [8938, 2, 7, 0.99], [434, 2, 7, 0.89], [624, 2, 7, 2.25], [3889, 1, 7, 1.38], [2054, 3, 7, 0.91], [5165, 1, 7, 3.0], [1429, 2, 7, 1.46], [378, 2, 7, 4.21], [7005, 1, 7, 1.99], [140, 2, 7, 2.74], [7084, 3, 7, 1.05], [3891, 1, 7, 0.76], [2991, 3, 7, 3.64], [10574, 3, 9, 3.22], [1006, 2, 7, 1.01], [7886, 4, 7, 0.8], [7573, 1, 22, 2.1], [10149, 3, 21, 2.09], [5208, 3, 7, 1.78], [75, 2, 7, 1.88], [1622, 1, 7, 0.84], [12352, 1, 7, 1.08], [21793, 1, 7, 4.06], [3, 2, 7, 1.14], [20927, 1, 7, 1.39], [997, 2, 7, 2.32], [12353, 1, 7, 1.08], [5165, 2, 8, 3.08], [11234, 2, 7, 2.3], [12721, 2, 7, 1.92], [346, 3, 7, 0.8], [1886, 2, 7, 1.04], [22247, 2, 7, 2.27], [11811, 1, 7, 0.8], [147, 1, 7, 2.42], [229, 1, 7, 0.89], [996, 2, 7, 3.13], [12346, 1, 7, 1.08], [20252, 2, 7, 0.88], [972, 3, 8, 1.52], [94, 4, 7, 2.1], [998, 2, 7, 1.5], [9491, 21, 21, 0.95], [12345, 1, 7, 1.08], [2912, 2, 12, 2.22], [76, 2, 7, 1.1], [35, 1, 7, 1.44], [11685, 2, 11, 4.22], [439, 1, 7, 1.03], [8104, 1, 7, 1.7], [6158, 2, 7, 4.79], [413, 1, 7, 1.76], [12343, 1, 7, 1.08], [2424, 80, 7, 4.39], [5076, 1, 7, 0.87], [13928, 1, 7, 1.29], [2805, 137, 7, 2.91], [5209, 3, 7, 1.78], [8676, 2, 7, 3.61], [12350, 1, 7, 1.08], [2774, 2, 7, 1.01], [148, 1, 7, 4.46], [83, 2, 7, 0.82], [412, 1, 7, 0.81], [418, 2, 7, 1.15], [33, 1, 7, 1.72], [3495, 3, 16, 1.61], [2336, 3, 8, 0.78], [20256, 2, 7, 0.96], [8898, 3, 7, 1.0], [7887, 4, 7, 1.42], [38, 1, 7, 1.16], [415, 1, 7, 0.97], [96, 11, 21, 0.64], [10407, 10, 10, 2.08], [11739, 2, 7, 2.52], [34, 1, 7, 1.05], [2424, 29, 7, 4.34], [13928, 2, 7, 1.29], [84, 2, 7, 1.65], [126, 2, 7, 2.74], [3048, 3, 7, 3.77], [11953, 1, 7, 1.0], [12344, 1, 7, 1.08], [11772, 1, 7, 0.84], [12351, 1, 7, 1.08], [8939, 2, 7, 0.89], [5584, 3, 7, 2.24], [10410, 10, 15, 2.08], [39, 1, 7, 1.1], [997, 2, 232, 3.96], [12353, 1, 617, 2.72], [5165, 2, 369, 4.71], [11234, 2, 178, 3.94], [12721, 2, 274, 3.56], [346, 3, 617, 2.44], [1886, 2, 152, 2.67], [22247, 2, 274, 3.9], [11811, 1, 446, 2.44], [147, 1, 86, 4.06], [229, 1, 82, 2.53], [996, 2, 227, 4.77], [12346, 1, 617, 2.72], [20252, 2, 91, 2.52], [972, 3, 579, 3.17], [94, 4, 117, 3.74], [998, 2, 232, 3.14], [9491, 21, 2074, 2.55], [12345, 1, 617, 2.72], [2912, 2, 379, 3.85], [76, 2, 106, 2.73], [35, 1, 108, 3.08], [11685, 2, 260, 5.85], [439, 1, 85, 2.67], [8104, 1, 199, 3.33], [6158, 2, 248, 6], [413, 1, 84, 3.4], [12343, 1, 617, 2.72], [2424, 80, 160, 6], [5076, 1, 127, 2.5], [13928, 1, 46, 2.92], [2805, 137, 174, 4.54], [5209, 3, 541, 3.41], [8676, 2, 275, 5.25], [12350, 1, 617, 2.72], [2774, 2, 199, 2.65], [148, 1, 86, 6], [83, 2, 44, 2.39], [412, 1, 82, 2.45], [418, 2, 138, 2.79], [33, 1, 108, 3.35], [3495, 3, 935, 3.25], [2336, 3, 570, 2.42], [20256, 2, 91, 2.59], [8898, 3, 285, 2.64], [7887, 4, 68, 2.73], [38, 1, 108, 2.8], [415, 1, 84, 2.61], [96, 11, 555, 2.1], [10407, 10, 1164, 3.71], [11739, 2, 55, 4.16], [34, 1, 108, 2.69], [2424, 29, 32, 5.98], [13928, 2, 23, 2.92], [84, 2, 65, 3.29], [126, 2, 87, 4.37], [3048, 3, 262, 5.41], [11953, 1, 194, 2.64], [12344, 1, 617, 2.72], [11772, 1, 214, 2.47], [12351, 1, 617, 2.72], [8939, 2, 187, 2.53], [5584, 3, 232, 3.88], [10410, 10, 1164, 3.71], [39, 1, 108, 2.74]]</t>
   </si>
 </sst>
 </file>
@@ -404,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,22 +531,242 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>3304</v>
+        <v>3301</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>3302</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>3303</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>3304</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>3305</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>3306</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>3307</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>3308</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>3309</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>3310</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>3311</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>3312</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/QD_upload.xlsx
+++ b/QD_upload.xlsx
@@ -34,118 +34,118 @@
     <t>Discounts Group 2</t>
   </si>
   <si>
+    <t>MostorodQD</t>
+  </si>
+  <si>
+    <t>TantaQD</t>
+  </si>
+  <si>
+    <t>SharqyaQD</t>
+  </si>
+  <si>
+    <t>BarageelQD</t>
+  </si>
+  <si>
+    <t>ElMahalaQD</t>
+  </si>
+  <si>
+    <t>MansouraFCQD</t>
+  </si>
+  <si>
+    <t>BanisweifQD</t>
+  </si>
+  <si>
     <t>AssiutFCQD</t>
   </si>
   <si>
-    <t>BanisweifQD</t>
-  </si>
-  <si>
-    <t>BarageelQD</t>
-  </si>
-  <si>
-    <t>ElMahalaQD</t>
+    <t>SohagQD</t>
+  </si>
+  <si>
+    <t>MenyaSamalotQD</t>
   </si>
   <si>
     <t>KhorshedAlexQD</t>
   </si>
   <si>
-    <t>MansouraFCQD</t>
-  </si>
-  <si>
-    <t>MenyaSamalotQD</t>
-  </si>
-  <si>
-    <t>MostorodQD</t>
-  </si>
-  <si>
     <t>SakkarahQD</t>
   </si>
   <si>
-    <t>SharqyaQD</t>
-  </si>
-  <si>
-    <t>SohagQD</t>
-  </si>
-  <si>
-    <t>TantaQD</t>
-  </si>
-  <si>
-    <t>08/12/2025 18:48</t>
-  </si>
-  <si>
-    <t>10/12/2025 23:59</t>
-  </si>
-  <si>
-    <t>[[2778, 2, 5, 0.47], [6935, 2, 7, 1.8], [305, 2, 4, 0.48], [8672, 2, 5, 0.91], [615, 2, 4, 0.45], [1504, 2, 5, 0.58], [2775, 2, 4, 0.66], [145, 2, 4, 0.49], [2776, 2, 4, 1.41], [8853, 2, 4, 1.78], [2327, 2, 4, 0.51], [130, 1, 4, 0.45], [12721, 2, 5, 0.72], [143, 2, 4, 0.51], [2328, 2, 4, 0.51], [146, 2, 4, 0.62], [2049, 3, 8, 0.42], [361, 2, 4, 0.59], [11681, 2, 5, 1.64], [616, 2, 4, 1.37], [362, 2, 4, 0.51], [5491, 2, 4, 0.56], [205, 2, 4, 0.37], [141, 2, 4, 0.55], [2497, 2, 4, 0.45], [8650, 2, 4, 1.53], [144, 2, 4, 0.53], [1124, 2, 5, 0.82], [5493, 2, 4, 0.76], [417, 2, 4, 0.47], [8676, 2, 4, 0.6], [8673, 2, 4, 0.73], [3670, 2, 4, 2.02], [2774, 2, 4, 0.82], [8648, 2, 4, 1.15], [589, 2, 4, 0.43], [3, 2, 4, 0.66], [308, 1, 8, 0.67], [206, 2, 4, 0.37], [6097, 80, 4, 1.86], [2423, 29, 4, 3.59], [22247, 2, 4, 1.21], [6497, 1, 4, 0.46], [11836, 2, 4, 0.51], [8674, 2, 4, 1.22], [624, 2, 4, 1.18], [2055, 3, 4, 0.46], [2423, 80, 4, 3.59], [523, 2, 4, 0.66], [12344, 1, 4, 0.71], [593, 2, 5, 0.53], [6097, 29, 4, 1.86], [6098, 80, 4, 2.09], [990, 2, 4, 0.77], [12720, 2, 4, 0.72], [75, 2, 4, 0.56], [8915, 2, 4, 0.41], [88, 10, 8, 0.48], [944, 15, 4, 0.46], [326, 2, 4, 0.85], [60, 3, 5, 0.86], [13260, 29, 4, 0.36], [3429, 15, 4, 0.46], [1492, 1, 4, 0.65], [1413, 15, 4, 0.54], [411, 2, 4, 0.37], [412, 1, 4, 1.34], [2422, 80, 4, 1.97], [6496, 1, 4, 0.5], [10149, 3, 13, 0.55], [378, 2, 4, 2.29], [2422, 29, 4, 1.97], [7704, 2, 4, 0.43], [6098, 29, 4, 2.09], [159, 3, 5, 0.72], [151, 1, 4, 0.51], [22316, 3, 4, 0.46], [11738, 2, 4, 1.92], [20252, 2, 4, 0.53], [13264, 29, 4, 0.55], [12269, 2, 4, 0.45], [345, 3, 4, 0.51], [13258, 29, 4, 1.23], [1490, 1, 4, 0.36], [10407, 10, 6, 1.18], [2331, 1, 4, 0.72], [22558, 3, 4, 0.41], [307, 2, 4, 0.87], [1163, 3, 4, 1.45], [416, 1, 4, 1.52], [201, 3, 4, 0.51], [2821, 3, 8, 0.45], [114, 3, 4, 0.62], [2912, 1, 4, 1.31], [2438, 1, 4, 1.36], [149, 2, 4, 0.37], [418, 2, 4, 0.37], [7705, 2, 4, 0.43], [13259, 29, 4, 1.13], [957, 2, 4, 0.51], [432, 3, 4, 2.04], [12229, 2, 4, 0.7], [7706, 2, 4, 0.43], [21793, 1, 4, 1.44], [11687, 2, 4, 0.56], [8938, 2, 4, 0.54], [11844, 2, 4, 0.52], [5490, 2, 4, 0.46], [1413, 16, 4, 0.54], [7036, 1, 4, 0.43], [1414, 15, 4, 0.5], [10406, 10, 7, 1.21], [21713, 3, 7, 0.46], [20255, 2, 4, 0.5], [2421, 80, 4, 1.42], [12870, 1, 4, 2.33], [9784, 1, 4, 0.91], [10408, 10, 6, 1.04], [10410, 10, 6, 1.18], [11402, 1, 4, 0.36], [3478, 2, 4, 1.28], [7084, 3, 4, 0.36], [19687, 1, 4, 1.2], [11161, 1, 5, 0.44], [956, 2, 4, 0.45], [2703, 3, 4, 0.45], [1886, 2, 4, 0.5], [21781, 2, 4, 0.47], [107, 7, 5, 1.2], [22125, 2, 4, 0.36], [10411, 10, 6, 1.12], [11690, 2, 4, 0.47], [11490, 1, 4, 0.55], [2778, 2, 156, 2.86], [6935, 2, 278, 6], [305, 2, 146, 2.67], [8672, 2, 286, 3.69], [615, 2, 107, 3.51], [1504, 2, 203, 3.13], [2775, 2, 156, 3.08], [145, 2, 150, 2.69], [2776, 2, 156, 4.37], [8853, 2, 278, 5.28], [2327, 2, 150, 3.61], [130, 1, 20, 2.93], [12721, 2, 282, 3.47], [143, 2, 148, 2.72], [2328, 2, 150, 3.64], [146, 2, 150, 2.92], [2049, 3, 368, 2.36], [361, 2, 156, 2.87], [11681, 2, 274, 6], [616, 2, 107, 4.31], [362, 2, 143, 2.73], [5491, 2, 108, 2.81], [205, 2, 109, 2.53], [141, 2, 155, 2.79], [2497, 2, 203, 2.93], [8650, 2, 224, 5.39], [144, 2, 150, 2.75], [1124, 2, 186, 3.52], [5493, 2, 108, 3.19], [417, 2, 156, 2.66], [8676, 2, 286, 2.88], [8673, 2, 287, 4.73], [3670, 2, 234, 6], [2774, 2, 203, 5.7], [8648, 2, 224, 4.76], [589, 2, 153, 2.57], [3, 2, 121, 2.99], [308, 1, 173, 2.94], [206, 2, 109, 2.53], [6097, 80, 67, 5.21], [2423, 29, 35, 6], [22247, 2, 282, 4.02], [6497, 1, 38, 2.63], [11836, 2, 267, 2.72], [8674, 2, 286, 4.03], [624, 2, 107, 3.95], [2055, 3, 241, 2.27], [2423, 80, 177, 6], [523, 2, 156, 3.01], [12344, 1, 613, 3.08], [593, 2, 229, 2.67], [6097, 29, 34, 5.21], [6098, 80, 73, 5.62], [990, 2, 26, 2.84], [12720, 2, 282, 3.47], [75, 2, 144, 2.82], [8915, 2, 128, 2.36], [88, 10, 561, 4.29], [944, 15, 44, 2.63], [326, 2, 45, 3.51], [60, 3, 814, 3.28], [13260, 29, 72, 2.44], [3429, 15, 53, 2.63], [1492, 1, 37, 2.99], [1413, 15, 99, 2.77], [411, 2, 109, 2.53], [412, 1, 83, 4.53]]</t>
-  </si>
-  <si>
-    <t>[[141, 2, 4, 0.48], [2328, 2, 4, 0.51], [8650, 2, 4, 0.96], [362, 2, 4, 0.51], [5491, 2, 4, 0.6], [5493, 2, 4, 0.8], [130, 1, 4, 0.45], [589, 2, 4, 0.52], [2327, 2, 4, 0.51], [11685, 2, 4, 1.87], [326, 2, 4, 0.62], [8672, 2, 5, 0.91], [417, 2, 4, 0.47], [6935, 2, 7, 1.31], [1124, 2, 5, 0.35], [11681, 2, 5, 1.87], [206, 2, 4, 0.47], [8648, 2, 4, 0.58], [6936, 2, 4, 1.09], [142, 2, 4, 0.57], [8915, 2, 4, 0.39], [12721, 2, 5, 0.48], [1446, 2, 4, 0.52], [2049, 3, 8, 0.39], [11838, 2, 4, 0.56], [523, 2, 4, 0.66], [8676, 2, 4, 0.6], [615, 2, 4, 0.75], [305, 2, 4, 0.48], [616, 2, 4, 0.72], [412, 1, 4, 0.36], [413, 1, 4, 0.93], [11739, 2, 4, 1.85], [10574, 3, 5, 1.26], [145, 2, 4, 0.49], [2775, 2, 4, 0.42], [21793, 1, 4, 1.44], [1429, 2, 4, 0.52], [76, 2, 4, 1.11], [8675, 2, 5, 0.73], [990, 2, 4, 0.9], [8673, 2, 4, 1.02], [143, 2, 4, 0.58], [8938, 2, 4, 0.54], [11836, 2, 4, 0.47], [146, 2, 4, 0.62], [8674, 2, 4, 1.22], [6158, 2, 5, 1.33], [151, 1, 4, 0.51], [2776, 2, 4, 0.75], [2050, 3, 4, 0.35], [12720, 2, 4, 0.48], [10149, 3, 13, 0.89], [3495, 3, 10, 0.98], [12350, 1, 4, 0.77], [2054, 3, 4, 0.5], [75, 2, 4, 1.17], [2057, 3, 4, 0.35], [11738, 2, 4, 1.73], [1504, 2, 5, 0.47], [144, 2, 4, 0.53], [8939, 2, 4, 0.51], [416, 1, 4, 0.73], [22316, 3, 4, 0.46], [159, 3, 5, 0.72], [88, 10, 8, 0.48], [2859, 15, 4, 1.1], [7885, 4, 4, 0.44], [418, 2, 4, 0.37], [7084, 3, 4, 1.96], [10993, 2, 4, 0.46], [21798, 1, 4, 0.36], [20252, 2, 4, 0.5], [12346, 1, 4, 0.57], [414, 1, 4, 0.93], [7705, 2, 4, 1.15], [410, 1, 4, 0.48], [2424, 29, 4, 1.0], [12526, 2, 4, 1.1], [5165, 1, 4, 1.48], [2423, 29, 4, 1.99], [11844, 2, 4, 0.42], [2423, 80, 4, 1.96], [12351, 1, 4, 0.49], [6494, 1, 4, 0.42], [11490, 1, 4, 0.48], [378, 2, 4, 1.73], [12373, 1, 5, 1.29], [2424, 80, 4, 0.97], [13023, 3, 6, 1.51], [13034, 3, 5, 1.09], [60, 3, 5, 1.36], [1414, 15, 4, 0.56], [201, 3, 4, 0.51], [11770, 1, 4, 1.0], [1519, 3, 9, 0.4], [345, 3, 4, 0.51], [6952, 1, 4, 1.09], [159, 1, 4, 0.61], [9126, 1, 4, 0.86], [13928, 1, 4, 0.45], [11808, 1, 4, 0.43], [3430, 15, 4, 1.32], [20927, 1, 4, 0.48], [3429, 15, 4, 0.46], [11954, 1, 4, 0.42], [11811, 1, 4, 0.38], [432, 3, 4, 2.04], [566, 2, 4, 0.5], [2331, 1, 4, 0.72], [11504, 2, 4, 0.42], [10407, 10, 6, 1.18], [5584, 3, 4, 1.77], [114, 3, 4, 0.49], [7886, 4, 4, 0.44], [7004, 1, 4, 0.52], [1490, 1, 4, 1.32], [105, 3, 4, 0.44], [11089, 1, 4, 0.45], [1492, 1, 4, 0.65], [11953, 1, 4, 0.48], [8274, 3, 4, 2.3], [2703, 3, 4, 0.44], [6098, 80, 4, 2.27], [944, 15, 4, 0.46], [10410, 10, 6, 1.18], [1886, 2, 4, 0.5], [22317, 3, 5, 0.51], [94, 4, 4, 1.77], [11161, 1, 5, 0.44], [6097, 80, 4, 1.86], [3891, 1, 4, 2.08], [11485, 24, 4, 0.56], [141, 2, 156, 2.66], [2328, 2, 150, 3.64], [8650, 2, 225, 4.1], [362, 2, 143, 2.73], [5491, 2, 108, 2.89], [5493, 2, 108, 3.26], [130, 1, 20, 2.93], [589, 2, 153, 2.73], [2327, 2, 150, 3.61], [11685, 2, 274, 5.74], [326, 2, 45, 3.28], [8672, 2, 286, 3.69], [417, 2, 156, 2.66], [6935, 2, 282, 5.52], [1124, 2, 187, 3.06], [11681, 2, 274, 6], [206, 2, 36, 2.11], [8648, 2, 225, 4.31], [6936, 2, 282, 4.36], [142, 2, 156, 2.83], [8915, 2, 97, 2.14], [12721, 2, 283, 3.24], [1446, 2, 151, 3.34], [2049, 3, 547, 2.5], [11838, 2, 267, 2.8], [523, 2, 156, 3.01], [8676, 2, 286, 2.88], [615, 2, 108, 3.15], [305, 2, 146, 2.67], [616, 2, 108, 3.11], [412, 1, 83, 3.56], [413, 1, 86, 3.5], [11739, 2, 19, 4.46], [10574, 3, 499, 4.27], [145, 2, 150, 2.69], [2775, 2, 157, 2.56], [21793, 1, 241, 5.28], [1429, 2, 151, 2.81], [76, 2, 108, 3.83], [8675, 2, 286, 3.17], [990, 2, 17, 2.72], [8673, 2, 279, 4.65], [143, 2, 148, 2.84], [8938, 2, 191, 2.78], [11836, 2, 267, 2.64], [146, 2, 150, 2.92], [8674, 2, 286, 4.03], [6158, 2, 259, 4.44], [151, 1, 33, 2.73], [2776, 2, 157, 3.16], [2050, 3, 161, 1.72], [12720, 2, 283, 3.24], [10149, 3, 894, 3.33], [3495, 3, 960, 3.54], [12350, 1, 623, 3.19], [75, 2, 143, 3.94], [2057, 3, 161, 1.72], [11738, 2, 38, 4.79], [1504, 2, 204, 2.86], [144, 2, 150, 2.75], [8939, 2, 191, 2.72], [416, 1, 86, 3.12], [22316, 3, 317, 2.64], [159, 3, 706, 3.16], [88, 10, 561, 4.29], [2859, 15, 69, 3.81], [7885, 4, 47, 1.88]]</t>
-  </si>
-  <si>
-    <t>[[326, 2, 4, 0.47], [6935, 2, 8, 1.22], [589, 2, 5, 0.38], [141, 2, 4, 0.54], [75, 2, 4, 0.99], [3, 2, 4, 0.45], [1776, 1, 4, 0.58], [8915, 2, 5, 0.37], [2778, 2, 4, 0.58], [6936, 2, 5, 1.27], [8672, 2, 6, 0.97], [593, 2, 5, 0.36], [305, 2, 4, 0.48], [206, 2, 4, 0.39], [151, 1, 4, 0.44], [8648, 2, 4, 0.77], [2328, 2, 4, 0.51], [88, 10, 8, 1.33], [11681, 2, 5, 2.33], [990, 2, 4, 0.62], [8650, 2, 4, 1.15], [412, 1, 4, 0.91], [5151, 2, 4, 0.4], [2050, 3, 4, 0.66], [76, 2, 4, 1.11], [144, 2, 4, 0.5], [10149, 3, 15, 1.32], [345, 3, 5, 0.51], [2991, 3, 4, 1.1], [22247, 2, 4, 1.06], [3478, 2, 4, 1.28], [57, 1, 4, 0.38], [146, 2, 4, 0.56], [45, 2, 4, 1.12], [143, 2, 4, 0.46], [417, 2, 4, 0.79], [413, 1, 4, 0.35], [167, 3, 4, 1.09], [21793, 1, 4, 1.03], [1446, 2, 4, 0.53], [74, 1, 4, 0.84], [2055, 3, 4, 0.94], [346, 1, 4, 0.44], [201, 3, 5, 0.92], [168, 3, 4, 0.75], [10, 2, 4, 0.92], [7036, 1, 4, 0.54], [11234, 2, 4, 0.63], [1429, 2, 4, 0.54], [7084, 3, 4, 0.88], [335, 3, 10, 0.37], [8938, 2, 5, 0.37], [12721, 2, 6, 0.96], [5081, 2, 4, 0.54], [3495, 3, 13, 0.92], [8649, 2, 4, 1.15], [13028, 3, 4, 0.5], [308, 1, 4, 2.44], [410, 1, 4, 0.4], [3889, 1, 4, 1.02], [12870, 1, 4, 2.33], [10825, 21, 8, 0.37], [3893, 1, 4, 0.4], [96, 11, 14, 0.46], [1492, 1, 4, 0.38], [1006, 2, 4, 0.66], [1504, 2, 4, 0.48], [418, 2, 4, 0.42], [5208, 3, 5, 0.39], [3891, 1, 4, 0.75], [145, 2, 4, 0.43], [9827, 3, 4, 0.47], [94, 4, 4, 0.51], [8853, 2, 5, 1.19], [1490, 1, 4, 0.46], [13260, 29, 4, 0.46], [5812, 3, 5, 1.22], [416, 1, 4, 0.73], [432, 3, 4, 0.41], [8651, 2, 4, 1.15], [25, 1, 4, 0.95], [142, 2, 4, 0.74], [8939, 2, 4, 0.45], [12353, 1, 4, 0.7], [20256, 2, 4, 0.38], [21269, 3, 4, 0.95], [950, 1, 4, 0.36], [5086, 1, 4, 1.11], [1243, 2, 4, 0.92], [33, 1, 4, 0.66], [9069, 1, 4, 1.12], [229, 1, 4, 2.07], [998, 2, 4, 0.69], [12350, 1, 4, 0.62], [140, 2, 4, 0.47], [2878, 1, 4, 0.54], [7567, 3, 4, 1.12], [126, 2, 4, 0.47], [346, 3, 5, 0.43], [9829, 3, 4, 0.41], [8274, 3, 4, 0.59], [9691, 1, 4, 0.9], [35, 1, 4, 0.46], [5584, 3, 4, 0.44], [1070, 7, 8, 0.39], [997, 2, 4, 0.6], [3980, 4, 4, 1.31], [5660, 2, 4, 1.05], [5209, 3, 4, 0.37], [11914, 1, 4, 0.52], [1519, 3, 10, 0.4], [8898, 3, 4, 2.17], [159, 3, 5, 0.77], [9372, 1, 4, 0.39], [5513, 2, 4, 0.46], [1091, 1, 4, 0.53], [24, 1, 4, 0.95], [2775, 2, 4, 0.58], [13034, 3, 5, 1.26], [9081, 3, 7, 0.78], [523, 2, 4, 0.74], [12661, 1, 4, 0.47], [20255, 2, 4, 0.38], [11808, 1, 4, 0.79], [307, 2, 4, 0.64], [11491, 2, 4, 0.51], [434, 2, 4, 0.36], [1163, 3, 4, 0.47], [12225, 1, 4, 0.52], [336, 15, 4, 0.44], [952, 4, 4, 1.89], [8945, 3, 5, 2.0], [9082, 3, 15, 0.68], [326, 2, 84, 2.13], [6935, 2, 262, 4.2], [589, 2, 142, 1.96], [141, 2, 144, 2.14], [75, 2, 134, 2.98], [3, 2, 113, 1.97], [1776, 1, 104, 2.22], [8915, 2, 178, 1.85], [2778, 2, 144, 2.21], [6936, 2, 262, 3.83], [8672, 2, 262, 4.07], [593, 2, 211, 1.98], [305, 2, 135, 2.03], [206, 2, 101, 1.86], [151, 1, 62, 1.96], [8648, 2, 207, 4.36], [2328, 2, 139, 2.09], [88, 10, 520, 3.6], [11681, 2, 251, 6], [990, 2, 48, 2.31], [8650, 2, 207, 4.4], [412, 1, 77, 2.82], [5151, 2, 22, 1.88], [2050, 3, 438, 2.36], [76, 2, 100, 3.19], [144, 2, 139, 2.08], [10149, 3, 795, 4.41], [345, 3, 276, 2.97], [2991, 3, 149, 4.79], [22247, 2, 260, 3.65], [3478, 2, 69, 3.51], [57, 1, 79, 1.85], [146, 2, 139, 2.18], [45, 2, 100, 3.8], [143, 2, 137, 2.0], [417, 2, 143, 3.53], [413, 1, 79, 1.89], [167, 3, 209, 3.16], [21793, 1, 223, 4.78], [1446, 2, 141, 2.71], [74, 1, 182, 3.67], [2055, 3, 328, 3.85], [346, 1, 146, 1.96], [201, 3, 276, 4.21], [168, 3, 377, 2.54], [10, 2, 73, 4.08], [7036, 1, 117, 3.99], [11234, 2, 170, 2.41], [1429, 2, 141, 2.14], [7084, 3, 119, 3.6], [335, 3, 1242, 1.84], [8938, 2, 134, 1.65], [12721, 2, 260, 3.08], [5081, 2, 176, 2.15], [3495, 3, 886, 2.72], [8649, 2, 207, 4.12], [13028, 3, 136, 2.08], [308, 1, 155, 5.64], [410, 1, 98, 1.88], [3889, 1, 115, 3.03], [12870, 1, 126, 5.43], [10825, 21, 594, 1.82], [3893, 1, 115, 2.32], [96, 11, 783, 1.97], [1492, 1, 34, 1.85], [1006, 2, 211, 2.37], [1504, 2, 189, 2.04]]</t>
-  </si>
-  <si>
-    <t>[[88, 10, 8, 1.0], [2327, 2, 4, 0.52], [589, 2, 5, 0.5], [2778, 2, 4, 0.5], [6935, 2, 5, 1.69], [2328, 2, 4, 0.76], [130, 1, 4, 0.45], [615, 2, 4, 1.37], [305, 2, 4, 0.45], [616, 2, 4, 1.27], [6936, 2, 4, 1.66], [326, 2, 4, 1.22], [8650, 2, 4, 1.53], [8648, 2, 4, 1.15], [1446, 2, 4, 0.78], [7004, 1, 4, 1.24], [2049, 3, 5, 0.42], [10, 2, 4, 0.92], [159, 3, 5, 0.67], [143, 2, 4, 0.44], [593, 2, 4, 0.4], [2775, 2, 4, 0.5], [5491, 2, 4, 0.45], [7036, 1, 4, 1.2], [144, 2, 4, 0.54], [3840, 1, 4, 0.79], [151, 1, 4, 0.51], [8938, 2, 4, 0.54], [94, 4, 4, 0.4], [434, 2, 4, 0.49], [1124, 2, 4, 0.79], [3893, 1, 4, 0.39], [990, 2, 4, 0.77], [1504, 2, 4, 0.38], [146, 2, 4, 0.57], [8853, 2, 4, 1.7], [624, 2, 4, 1.22], [12224, 1, 4, 0.45], [1429, 2, 4, 0.78], [2776, 2, 4, 0.62], [3891, 1, 4, 0.41], [362, 2, 4, 0.52], [141, 2, 4, 0.39], [11681, 2, 5, 1.81], [378, 2, 4, 2.29], [5208, 3, 4, 0.97], [3889, 1, 4, 0.75], [1007, 2, 4, 0.46], [10574, 3, 4, 1.36], [11234, 2, 4, 1.25], [2054, 3, 4, 0.5], [12870, 1, 4, 1.18], [7005, 1, 4, 1.08], [7886, 4, 4, 0.44], [10149, 3, 13, 1.21], [21793, 1, 4, 1.84], [145, 2, 4, 0.5], [11811, 1, 4, 0.44], [7084, 3, 4, 0.57], [20927, 1, 4, 0.76], [2912, 1, 4, 1.27], [8672, 2, 4, 1.69], [5165, 1, 4, 1.52], [9760, 29, 4, 0.67], [998, 2, 4, 0.81], [997, 2, 4, 1.26], [417, 2, 4, 0.46], [2436, 4, 4, 0.78], [1886, 2, 4, 0.56], [1006, 2, 4, 0.55], [346, 3, 4, 0.43], [972, 3, 5, 0.51], [2424, 80, 4, 2.39], [229, 1, 4, 0.49], [3495, 3, 10, 0.92], [6158, 2, 4, 2.61], [8651, 2, 4, 1.18], [5076, 1, 4, 0.47], [9372, 1, 4, 1.34], [11953, 1, 4, 0.55], [7887, 4, 4, 0.47], [5165, 2, 5, 1.57], [20252, 2, 4, 0.48], [126, 2, 4, 1.22], [523, 2, 4, 0.36], [74, 1, 4, 1.69], [142, 2, 4, 0.36], [11770, 1, 4, 0.66], [140, 2, 4, 1.22], [8939, 2, 4, 0.49], [11954, 1, 4, 0.38], [1492, 1, 4, 0.53], [20256, 2, 4, 0.52], [996, 2, 4, 0.6], [11685, 2, 5, 1.83], [2912, 2, 7, 1.24], [2774, 2, 4, 0.55], [12721, 2, 4, 0.96], [3981, 3, 11, 0.62], [9491, 21, 10, 0.44], [5434, 1, 4, 0.83], [2423, 80, 4, 1.47], [11772, 1, 4, 0.46], [5584, 3, 4, 1.02], [10407, 10, 6, 1.18], [6496, 1, 4, 0.43], [10388, 2, 4, 0.55], [11179, 1, 4, 0.77], [2438, 2, 5, 1.09], [361, 2, 4, 0.41], [2805, 137, 4, 0.93], [5209, 3, 4, 0.97], [8898, 3, 4, 0.5], [12526, 2, 4, 0.53], [2424, 29, 4, 2.36], [7573, 1, 9, 0.82], [3900, 3, 4, 1.31], [2104, 3, 9, 0.4], [11812, 1, 4, 0.46], [4253, 1, 4, 0.54], [8676, 2, 4, 1.2], [1519, 3, 10, 0.4], [22247, 2, 4, 1.14], [96, 11, 13, 0.38], [1622, 1, 4, 0.45], [412, 1, 4, 0.44], [12764, 2, 5, 0.73], [972, 1, 4, 0.51], [432, 3, 4, 2.04], [9784, 1, 4, 0.52], [10386, 2, 4, 1.29], [1274, 1, 4, 0.48], [159, 16, 4, 0.56], [88, 10, 549, 3.73], [2327, 2, 147, 2.59], [589, 2, 149, 2.51], [2778, 2, 153, 2.56], [6935, 2, 272, 5.53], [2328, 2, 147, 3.03], [130, 1, 19, 2.84], [615, 2, 104, 4.64], [305, 2, 143, 2.46], [616, 2, 104, 3.97], [6936, 2, 272, 4.9], [326, 2, 87, 4.37], [8650, 2, 218, 4.44], [8648, 2, 218, 4.71], [1446, 2, 99, 3.29], [2049, 3, 359, 2.34], [10, 2, 34, 4.03], [159, 3, 687, 2.82], [143, 2, 144, 2.45], [593, 2, 222, 2.57], [2775, 2, 153, 2.56], [5491, 2, 102, 3.16], [7036, 1, 125, 4.66], [144, 2, 147, 2.63], [3840, 1, 167, 3.09], [151, 1, 43, 2.78], [8938, 2, 125, 2.46], [94, 4, 117, 3.74], [434, 2, 104, 2.53], [1124, 2, 181, 3.1], [3893, 1, 122, 2.35], [990, 2, 25, 2.76], [1504, 2, 199, 2.33], [146, 2, 147, 2.68], [8853, 2, 272, 4.99], [624, 2, 104, 3.89], [12224, 1, 162, 2.47], [1429, 2, 148, 3.1], [2776, 2, 153, 2.77], [3891, 1, 122, 2.4], [362, 2, 138, 2.59], [141, 2, 152, 2.36], [11681, 2, 260, 5.81], [378, 2, 218, 5.84], [5208, 3, 541, 3.41], [3889, 1, 122, 3.01], [1007, 2, 263, 2.48], [10574, 3, 328, 4.69], [11234, 2, 178, 3.94], [2054, 3, 157, 1.88], [12870, 1, 134, 4.83], [7005, 1, 26, 2.97], [7886, 4, 70, 2.11], [10149, 3, 864, 3.73], [21793, 1, 233, 5.69], [145, 2, 147, 2.56], [11811, 1, 446, 2.44], [7084, 3, 128, 2.69], [20927, 1, 77, 3.03], [2912, 1, 47, 3.96], [8672, 2, 275, 5.25], [5165, 1, 46, 4.64], [9760, 29, 70, 2.87], [998, 2, 232, 3.14], [997, 2, 232, 3.96], [417, 2, 151, 2.47], [2436, 4, 112, 3.82]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 6, 1.37], [141, 2, 4, 0.53], [589, 2, 5, 0.45], [2778, 2, 4, 1.0], [6936, 2, 5, 0.94], [8648, 2, 4, 2.08], [362, 2, 4, 0.56], [11681, 2, 9, 0.85], [8650, 2, 4, 2.08], [326, 2, 4, 0.47], [205, 2, 4, 0.46], [2328, 2, 4, 0.39], [1446, 2, 4, 0.5], [130, 1, 4, 0.95], [305, 2, 4, 1.0], [8649, 2, 4, 2.46], [2775, 2, 4, 1.0], [8853, 2, 5, 0.94], [361, 2, 4, 0.4], [2776, 2, 4, 0.82], [593, 2, 4, 0.52], [143, 2, 4, 0.51], [140, 2, 4, 0.47], [1429, 2, 4, 0.59], [206, 2, 4, 0.57], [523, 2, 4, 0.54], [5493, 2, 4, 0.53], [7036, 1, 4, 1.42], [413, 1, 4, 0.66], [7004, 1, 4, 0.39], [5491, 2, 4, 0.5], [412, 1, 4, 0.57], [21793, 1, 4, 1.14], [12350, 1, 4, 0.53], [1124, 2, 4, 0.79], [151, 1, 4, 0.37], [990, 2, 4, 0.78], [12353, 1, 4, 0.55], [5165, 1, 4, 1.2], [8915, 2, 5, 0.94], [615, 2, 4, 0.49], [417, 2, 4, 0.55], [583, 2, 4, 0.47], [248, 1, 4, 0.46], [201, 3, 4, 0.92], [142, 2, 4, 0.56], [6097, 80, 4, 1.88], [6952, 1, 4, 1.54], [434, 2, 4, 0.62], [11770, 1, 4, 0.53], [9372, 1, 4, 1.96], [345, 3, 4, 0.92], [11234, 2, 4, 0.63], [616, 2, 4, 0.36], [3670, 2, 4, 1.47], [7005, 1, 4, 0.47], [3893, 1, 4, 0.46], [5165, 2, 7, 1.19], [12346, 1, 4, 0.53], [998, 2, 4, 1.23], [2912, 1, 4, 1.92], [7084, 3, 4, 2.17], [12870, 1, 4, 1.18], [10574, 3, 5, 1.09], [12343, 1, 4, 0.49], [2424, 80, 4, 1.11], [1886, 2, 4, 0.56], [346, 3, 4, 0.43], [3334, 5, 4, 0.99], [20927, 1, 4, 0.36], [12351, 1, 4, 0.38], [6097, 29, 4, 1.91], [6098, 80, 4, 0.89], [12345, 1, 4, 0.47], [22316, 3, 4, 0.46], [147, 1, 4, 1.44], [11772, 1, 4, 0.5], [10149, 3, 15, 1.08], [20256, 2, 4, 0.37], [432, 3, 4, 0.62], [11491, 2, 4, 0.49], [2912, 2, 5, 1.92], [1492, 1, 4, 0.38], [11952, 1, 4, 0.47], [20252, 2, 4, 0.55], [1519, 3, 10, 0.4], [418, 2, 4, 0.48], [2423, 80, 4, 1.97], [4032, 29, 4, 0.52], [411, 2, 4, 0.54], [5151, 2, 4, 0.55], [229, 1, 4, 2.07], [972, 3, 4, 1.01], [12304, 1, 4, 0.96], [3576, 25, 4, 0.48], [346, 1, 4, 0.43], [2331, 1, 4, 1.04], [13034, 3, 4, 1.31], [416, 1, 4, 0.49], [13244, 1, 4, 0.36], [3, 2, 4, 0.41], [2424, 29, 4, 1.11], [11426, 25, 4, 0.59], [11737, 2, 4, 0.44], [5076, 1, 4, 0.42], [2805, 137, 4, 1.13], [439, 1, 4, 1.47], [11490, 1, 4, 0.6], [11583, 29, 4, 0.46], [414, 1, 4, 0.66], [1413, 15, 4, 0.56], [6494, 1, 4, 0.42], [950, 1, 4, 0.36], [410, 1, 4, 0.43], [3575, 25, 4, 0.55], [12764, 2, 5, 0.68], [13280, 1, 4, 1.89], [75, 2, 4, 0.37], [3478, 2, 4, 0.52], [1701, 2, 4, 0.69], [11180, 1, 4, 0.62], [11813, 1, 4, 1.29], [4253, 1, 4, 0.89], [8677, 3, 5, 1.21], [13023, 3, 5, 1.01], [11586, 1, 7, 0.37], [9784, 1, 4, 0.88], [9998, 80, 4, 1.18], [1309, 1, 4, 1.37], [12526, 2, 4, 0.98], [2438, 2, 5, 1.21], [4033, 29, 4, 0.46], [6098, 29, 4, 0.89], [6935, 2, 237, 4.77], [141, 2, 134, 2.51], [589, 2, 132, 2.17], [2778, 2, 133, 3.25], [6936, 2, 237, 5.31], [8648, 2, 190, 5.47], [362, 2, 121, 2.45], [11681, 2, 231, 5.09], [8650, 2, 190, 5.24], [326, 2, 78, 2.74], [205, 2, 93, 2.27], [2328, 2, 129, 3.01], [1446, 2, 131, 2.34], [130, 1, 30, 3.49], [305, 2, 126, 3.26], [8649, 2, 190, 5.94], [2775, 2, 133, 3.25], [8853, 2, 237, 5.44], [361, 2, 133, 2.53], [2776, 2, 133, 3.66], [593, 2, 196, 2.38], [143, 2, 127, 2.68], [140, 2, 78, 2.28], [1429, 2, 131, 2.49], [206, 2, 93, 2.46], [523, 2, 133, 2.41], [5493, 2, 93, 2.4], [7036, 1, 110, 4.13], [413, 1, 74, 2.79], [7004, 1, 55, 2.05], [5491, 2, 93, 2.34], [412, 1, 72, 2.67], [21793, 1, 204, 3.85], [12350, 1, 535, 2.4], [1124, 2, 160, 2.88], [151, 1, 57, 2.1], [990, 2, 45, 2.86], [12353, 1, 535, 2.45], [5165, 1, 41, 3.79], [8915, 2, 162, 4.15], [615, 2, 93, 2.32], [417, 2, 133, 2.43], [583, 2, 78, 2.74], [248, 1, 47, 2.27], [201, 3, 257, 4.48], [142, 2, 133, 2.44], [6097, 80, 57, 4.88], [6952, 1, 162, 4.46], [434, 2, 92, 2.65], [11770, 1, 187, 2.38], [9372, 1, 196, 5.26], [345, 3, 257, 3.1], [11234, 2, 158, 2.68], [616, 2, 93, 2.09], [3670, 2, 212, 4.13], [7005, 1, 41, 2.05], [3893, 1, 107, 2.26], [5165, 2, 327, 3.78], [12346, 1, 535, 2.4], [998, 2, 206, 3.68], [2912, 1, 41, 5.19], [7084, 3, 109, 5.41], [12870, 1, 118, 3.63], [10574, 3, 435, 3.31], [12343, 1, 535, 2.32], [2424, 80, 140, 5.19], [1886, 2, 134, 2.44]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 5, 1.34], [2778, 2, 4, 0.58], [615, 2, 4, 0.87], [305, 2, 4, 0.51], [130, 1, 4, 0.65], [6936, 2, 4, 1.35], [616, 2, 4, 0.61], [205, 2, 4, 0.51], [1504, 2, 4, 0.49], [8648, 2, 4, 0.96], [144, 2, 4, 0.47], [2049, 3, 7, 0.42], [88, 10, 8, 0.43], [7036, 1, 4, 0.43], [326, 2, 4, 0.7], [8650, 2, 4, 0.96], [589, 2, 5, 0.36], [593, 2, 4, 0.52], [2327, 2, 4, 0.54], [3893, 1, 4, 0.45], [11681, 2, 4, 1.37], [8853, 2, 4, 1.2], [2775, 2, 4, 0.58], [141, 2, 4, 0.53], [206, 2, 4, 0.44], [151, 1, 4, 0.4], [7004, 1, 4, 1.21], [9507, 3, 4, 0.36], [11685, 2, 4, 1.37], [3840, 1, 4, 0.39], [3891, 1, 4, 0.75], [10, 2, 4, 0.45], [2328, 2, 4, 0.51], [159, 3, 5, 0.75], [146, 2, 4, 0.57], [2050, 3, 4, 1.69], [2497, 2, 4, 0.6], [5491, 2, 4, 0.59], [2055, 3, 4, 1.73], [434, 2, 4, 0.41], [143, 2, 4, 0.51], [3980, 4, 4, 1.2], [624, 2, 4, 0.81], [2054, 3, 4, 1.86], [990, 2, 4, 0.36], [12349, 1, 4, 3.67], [8649, 2, 4, 1.34], [8672, 2, 4, 0.73], [362, 2, 4, 0.5], [12870, 1, 4, 0.92], [2776, 2, 4, 1.01], [2057, 3, 4, 1.78], [8938, 2, 4, 0.46], [12350, 1, 4, 1.27], [12353, 1, 4, 3.59], [10574, 3, 5, 1.36], [7886, 4, 4, 0.4], [5165, 1, 4, 1.47], [10993, 2, 4, 0.41], [145, 2, 4, 0.48], [1006, 2, 4, 0.78], [1446, 2, 4, 1.11], [523, 2, 4, 0.53], [94, 4, 4, 2.04], [7084, 3, 4, 0.78], [2991, 3, 4, 1.1], [3975, 4, 4, 1.26], [12346, 1, 4, 1.42], [21793, 1, 4, 1.13], [142, 2, 4, 0.52], [11404, 2, 4, 0.39], [9760, 29, 4, 0.47], [20927, 1, 4, 0.67], [6158, 2, 4, 0.68], [5165, 2, 5, 1.48], [3981, 3, 13, 1.15], [417, 2, 4, 0.55], [2912, 1, 4, 1.26], [8939, 2, 4, 0.47], [1007, 2, 4, 0.7], [3982, 3, 10, 1.18], [2774, 2, 4, 0.83], [997, 2, 4, 1.18], [33, 1, 4, 1.33], [11772, 1, 4, 1.09], [956, 2, 4, 0.44], [286, 3, 4, 2.38], [7887, 4, 4, 0.95], [12344, 1, 4, 1.44], [6497, 1, 4, 1.31], [1492, 1, 4, 0.96], [12352, 1, 4, 1.29], [12345, 1, 4, 1.27], [8120, 3, 4, 0.65], [950, 1, 4, 0.37], [998, 2, 4, 1.17], [972, 3, 4, 1.51], [11767, 1, 4, 0.54], [12351, 1, 4, 0.84], [996, 2, 4, 1.47], [11769, 1, 4, 0.96], [11770, 1, 4, 0.46], [11490, 1, 4, 0.53], [2912, 2, 5, 1.27], [432, 3, 4, 0.47], [74, 1, 4, 0.62], [6496, 1, 4, 0.75], [410, 1, 4, 0.9], [411, 2, 4, 0.65], [389, 4, 4, 0.88], [35, 1, 4, 1.33], [7567, 3, 4, 1.47], [4253, 1, 4, 0.82], [140, 2, 4, 0.7], [22317, 3, 4, 0.51], [8673, 2, 4, 0.47], [2336, 3, 5, 0.4], [4176, 4, 4, 1.31], [8121, 3, 4, 0.47], [9372, 1, 4, 0.39], [2436, 4, 4, 0.78], [21269, 3, 4, 2.49], [10388, 2, 4, 1.14], [10936, 2, 4, 1.7], [8676, 2, 4, 0.83], [22247, 2, 4, 1.14], [12343, 1, 4, 3.18], [11085, 2, 4, 1.27], [8677, 3, 4, 0.9], [12269, 2, 4, 1.03], [9784, 1, 4, 0.52], [12526, 2, 4, 1.08], [12225, 1, 4, 1.2], [6935, 2, 244, 4.26], [2778, 2, 135, 2.51], [615, 2, 94, 3.05], [305, 2, 127, 2.38], [130, 1, 30, 3.14], [6936, 2, 244, 4.64], [616, 2, 94, 2.58], [205, 2, 94, 2.38], [1504, 2, 175, 2.34], [8648, 2, 193, 4.15], [144, 2, 130, 2.31], [2049, 3, 477, 2.32], [88, 10, 498, 2.29], [7036, 1, 109, 3.72], [326, 2, 63, 3.3], [8650, 2, 193, 3.92], [589, 2, 132, 2.05], [593, 2, 196, 2.67], [2327, 2, 130, 2.43], [3893, 1, 108, 2.62], [11681, 2, 235, 4.79], [8853, 2, 244, 3.82], [2775, 2, 135, 2.51], [141, 2, 134, 3.03], [206, 2, 94, 2.27], [151, 1, 57, 2.64], [7004, 1, 68, 3.67], [9507, 3, 69, 1.56], [11685, 2, 235, 4.8], [3840, 1, 150, 2.17], [3891, 1, 108, 2.82], [10, 2, 90, 2.27], [2328, 2, 130, 2.39], [159, 3, 609, 2.75], [146, 2, 130, 2.49], [2050, 3, 395, 4.77], [2497, 2, 175, 2.55], [5491, 2, 93, 2.53], [2055, 3, 395, 4.86], [434, 2, 56, 1.96], [143, 2, 128, 2.39], [3980, 4, 415, 3.8], [624, 2, 94, 2.93], [2054, 3, 395, 5.11], [990, 2, 45, 2.1], [12349, 1, 519, 6], [8649, 2, 193, 3.91], [8672, 2, 246, 4.13], [362, 2, 122, 2.36], [12870, 1, 117, 5.16], [2776, 2, 135, 3.31], [2057, 3, 395, 4.97], [8938, 2, 67, 2.22], [12350, 1, 519, 3.98], [12353, 1, 519, 6], [10574, 3, 436, 3.81], [7886, 4, 50, 1.63], [5165, 1, 41, 4.34], [10993, 2, 47, 2.2], [145, 2, 130, 2.33], [1006, 2, 196, 3.02], [1446, 2, 131, 3.49], [523, 2, 133, 2.5], [94, 4, 103, 5.53], [7084, 3, 112, 2.88], [2991, 3, 140, 5.75], [3975, 4, 415, 3.93]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 7, 1.47], [305, 2, 4, 0.48], [130, 1, 4, 0.45], [2328, 2, 4, 0.51], [141, 2, 4, 0.48], [2778, 2, 5, 0.51], [8650, 2, 4, 0.96], [5491, 2, 4, 0.64], [2327, 2, 4, 0.51], [8672, 2, 5, 0.49], [6936, 2, 4, 1.26], [362, 2, 4, 1.09], [143, 2, 4, 0.51], [11681, 2, 5, 1.41], [145, 2, 4, 0.5], [205, 2, 4, 0.37], [5493, 2, 4, 0.85], [146, 2, 4, 0.57], [589, 2, 4, 0.4], [75, 2, 4, 0.97], [11838, 2, 4, 0.56], [523, 2, 4, 0.66], [8648, 2, 4, 0.58], [2049, 3, 8, 0.47], [1124, 2, 5, 0.82], [1005, 2, 4, 0.39], [8853, 2, 4, 1.46], [12721, 2, 5, 0.48], [615, 2, 4, 1.01], [206, 2, 4, 0.37], [326, 2, 4, 0.85], [8915, 2, 4, 0.89], [8673, 2, 4, 0.62], [144, 2, 4, 0.46], [8675, 2, 5, 0.98], [990, 2, 4, 0.9], [434, 2, 4, 0.55], [11739, 2, 4, 1.89], [88, 10, 8, 0.48], [2776, 2, 4, 1.28], [142, 2, 4, 0.57], [435, 2, 4, 0.53], [151, 1, 4, 0.51], [8676, 2, 4, 0.7], [6158, 2, 5, 0.67], [2424, 29, 4, 1.0], [8649, 2, 4, 0.96], [2423, 29, 4, 2.26], [11738, 2, 4, 1.78], [2497, 2, 4, 0.36], [2424, 80, 4, 0.97], [7704, 2, 4, 1.15], [1413, 15, 4, 0.54], [3670, 2, 4, 1.92], [10574, 3, 5, 1.26], [2423, 80, 4, 2.26], [3, 2, 4, 1.04], [7705, 2, 4, 1.15], [2859, 15, 4, 0.87], [11836, 2, 4, 0.47], [378, 2, 4, 1.73], [12720, 2, 4, 0.48], [412, 1, 4, 0.57], [7706, 2, 4, 1.15], [22316, 3, 4, 0.46], [2055, 3, 4, 0.46], [10149, 3, 13, 1.17], [74, 1, 4, 1.69], [3478, 2, 4, 1.28], [1414, 15, 4, 0.5], [2774, 2, 4, 0.52], [6497, 1, 4, 0.46], [307, 2, 4, 0.87], [60, 3, 5, 1.19], [12526, 2, 4, 1.1], [411, 2, 4, 0.37], [11089, 1, 4, 0.41], [418, 2, 4, 0.59], [346, 3, 5, 0.43], [7004, 1, 4, 0.56], [1409, 15, 4, 0.47], [413, 1, 4, 1.79], [7036, 1, 4, 0.43], [13034, 3, 5, 1.09], [14037, 3, 4, 0.46], [3893, 1, 4, 2.08], [20252, 2, 4, 0.37], [159, 3, 5, 0.72], [11844, 2, 4, 0.42], [8274, 3, 4, 0.58], [439, 1, 4, 0.53], [7084, 3, 4, 0.36], [13260, 29, 4, 0.67], [6097, 80, 4, 3.8], [6952, 1, 4, 1.09], [18964, 1, 4, 0.36], [9784, 1, 4, 0.74], [1050, 2, 4, 0.36], [7707, 2, 4, 0.72], [94, 4, 4, 1.77], [1490, 1, 4, 0.91], [11490, 1, 4, 0.55], [22317, 3, 5, 0.51], [1492, 1, 4, 0.65], [1413, 16, 4, 0.54], [3889, 1, 4, 2.08], [7708, 2, 4, 1.15], [1243, 2, 4, 0.45], [3495, 3, 10, 0.98], [565, 2, 4, 0.46], [414, 1, 4, 1.79], [7703, 2, 4, 1.15], [11491, 2, 4, 0.73], [21793, 1, 4, 1.44], [410, 1, 4, 0.48], [22558, 3, 4, 0.41], [2422, 80, 4, 0.61], [6098, 80, 4, 2.21], [149, 2, 4, 0.52], [2805, 137, 5, 1.55], [6630, 3, 4, 1.9], [11504, 2, 4, 0.62], [3674, 2, 4, 0.54], [147, 1, 4, 0.52], [247, 1, 4, 0.46], [2331, 1, 4, 0.9], [3430, 15, 4, 1.08], [13023, 3, 6, 0.57], [345, 3, 4, 0.76], [416, 1, 4, 1.59], [6098, 29, 4, 2.21], [23275, 2, 4, 0.39], [11671, 1, 4, 1.1], [6935, 2, 281, 5.97], [305, 2, 146, 2.67], [130, 1, 20, 2.93], [2328, 2, 150, 3.64], [141, 2, 156, 2.66], [2778, 2, 156, 2.96], [8650, 2, 225, 4.1], [5491, 2, 108, 2.97], [2327, 2, 150, 3.61], [8672, 2, 286, 4.22], [6936, 2, 281, 4.75], [362, 2, 141, 3.78], [143, 2, 148, 2.72], [11681, 2, 275, 5.7], [145, 2, 151, 2.71], [205, 2, 109, 2.53], [5493, 2, 108, 3.34], [146, 2, 151, 2.82], [589, 2, 103, 2.34], [75, 2, 145, 3.57], [11838, 2, 267, 2.8], [523, 2, 156, 3.01], [8648, 2, 225, 4.31], [2049, 3, 367, 2.78], [1124, 2, 186, 3.52], [1005, 2, 37, 1.79], [8853, 2, 281, 4.66], [12721, 2, 283, 3.24], [615, 2, 107, 3.91], [206, 2, 109, 2.53], [326, 2, 45, 3.51], [8915, 2, 63, 4.45], [8673, 2, 288, 4.48], [144, 2, 151, 2.63], [8675, 2, 286, 3.63], [990, 2, 17, 2.72], [434, 2, 107, 3.07], [11739, 2, 19, 4.55], [88, 10, 561, 4.29], [2776, 2, 156, 4.13], [142, 2, 156, 2.83], [435, 2, 107, 2.76], [151, 1, 33, 2.73], [8676, 2, 286, 3.07], [6158, 2, 261, 3.79], [2424, 29, 33, 5.62], [8649, 2, 225, 4.31], [2423, 29, 36, 5.93], [11738, 2, 28, 4.69], [2497, 2, 204, 2.44], [2424, 80, 163, 5.6], [7704, 2, 175, 4.06], [1413, 15, 99, 2.77], [3670, 2, 235, 6], [10574, 3, 499, 4.27], [2423, 80, 180, 5.93], [3, 2, 120, 3.73], [7705, 2, 175, 4.06], [2859, 15, 69, 3.38], [11836, 2, 267, 2.64], [378, 2, 225, 4.95], [12720, 2, 283, 3.24], [412, 1, 83, 3.77], [7706, 2, 175, 4.06], [22316, 3, 317, 2.64], [2055, 3, 241, 2.27], [10149, 3, 881, 4.12]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 6, 0.73], [305, 2, 4, 0.75], [326, 2, 4, 0.54], [3, 2, 4, 0.47], [205, 2, 4, 0.37], [6935, 2, 8, 1.27], [130, 1, 4, 0.55], [143, 2, 4, 0.58], [75, 2, 4, 0.87], [144, 2, 4, 0.49], [12721, 2, 6, 0.72], [593, 2, 5, 0.35], [145, 2, 4, 0.52], [8915, 2, 5, 0.41], [2778, 2, 4, 0.58], [1776, 1, 4, 0.61], [146, 2, 4, 0.52], [206, 2, 4, 0.37], [6936, 2, 5, 1.17], [8648, 2, 4, 1.52], [151, 1, 4, 0.37], [2328, 2, 4, 0.39], [8650, 2, 4, 1.9], [5151, 2, 4, 1.02], [248, 1, 4, 0.37], [2050, 3, 4, 0.9], [88, 10, 8, 0.95], [7886, 4, 4, 0.45], [74, 1, 4, 1.53], [1446, 2, 4, 0.4], [362, 2, 4, 0.48], [7004, 1, 4, 0.37], [2057, 3, 4, 0.47], [2991, 3, 4, 2.05], [1007, 2, 5, 0.39], [2055, 3, 4, 0.42], [147, 1, 4, 1.27], [8649, 2, 4, 1.9], [3889, 1, 4, 0.44], [11234, 2, 5, 0.63], [10, 2, 4, 0.8], [7005, 1, 4, 0.38], [1429, 2, 4, 0.39], [345, 3, 4, 0.57], [307, 2, 4, 0.58], [12870, 1, 4, 2.33], [5081, 2, 4, 0.69], [10825, 21, 8, 1.28], [7036, 1, 4, 0.43], [57, 1, 4, 0.43], [1504, 2, 4, 0.55], [3478, 2, 4, 1.03], [1006, 2, 4, 0.59], [10149, 3, 13, 0.98], [7084, 3, 4, 1.53], [3891, 1, 4, 0.77], [21793, 1, 4, 1.39], [167, 3, 4, 1.15], [94, 4, 4, 0.4], [411, 2, 4, 0.37], [308, 1, 4, 2.44], [9827, 3, 4, 0.48], [3893, 1, 4, 0.43], [79, 1, 4, 0.36], [432, 3, 4, 0.62], [23, 1, 4, 0.67], [8677, 3, 5, 0.65], [11681, 2, 5, 1.91], [33, 1, 4, 1.33], [12225, 1, 4, 0.43], [96, 11, 15, 0.38], [1490, 1, 4, 0.37], [148, 1, 4, 1.33], [11737, 2, 4, 0.44], [1124, 2, 4, 0.51], [6158, 2, 5, 0.51], [1243, 2, 4, 0.56], [8853, 2, 5, 1.32], [9760, 29, 4, 0.74], [412, 1, 4, 0.64], [5812, 3, 5, 0.8], [10574, 3, 5, 1.33], [2336, 3, 5, 0.99], [22247, 2, 6, 1.15], [20256, 2, 4, 0.52], [20927, 1, 4, 0.49], [8651, 2, 4, 0.38], [229, 1, 4, 2.07], [35, 1, 4, 1.33], [5208, 3, 5, 0.54], [201, 3, 4, 0.57], [45, 2, 4, 0.64], [1767, 25, 4, 0.59], [25, 1, 4, 0.76], [8676, 2, 6, 0.89], [159, 3, 5, 1.17], [9069, 1, 4, 1.04], [11490, 1, 4, 0.43], [413, 1, 4, 0.57], [3495, 3, 13, 1.31], [998, 2, 4, 2.02], [95, 3, 10, 0.54], [140, 2, 4, 0.54], [950, 1, 4, 0.41], [149, 2, 4, 1.33], [5946, 1, 4, 0.53], [3980, 4, 4, 1.25], [9372, 1, 4, 0.42], [1126, 2, 4, 0.5], [1766, 25, 4, 0.56], [2775, 2, 4, 0.58], [11489, 1, 4, 0.65], [490, 1, 4, 0.53], [1413, 15, 4, 0.5], [3670, 2, 4, 1.86], [20255, 2, 4, 0.52], [1070, 7, 9, 0.46], [8898, 3, 4, 0.75], [107, 2, 4, 1.17], [974, 3, 4, 0.88], [9691, 1, 4, 0.77], [20498, 1, 4, 0.98], [11954, 1, 4, 0.47], [8674, 2, 4, 0.73], [14037, 3, 4, 0.44], [823, 1, 4, 0.5], [1519, 3, 11, 0.46], [12353, 1, 4, 3.09], [11739, 2, 4, 0.44], [9784, 1, 4, 0.6], [14017, 3, 4, 1.04], [972, 3, 5, 0.65], [5209, 3, 4, 0.54], [8672, 2, 242, 3.98], [305, 2, 125, 2.8], [326, 2, 77, 2.94], [3, 2, 104, 2.17], [205, 2, 93, 1.99], [6935, 2, 242, 4.31], [130, 1, 38, 3.12], [143, 2, 126, 2.36], [75, 2, 125, 2.91], [144, 2, 128, 2.21], [12721, 2, 240, 3.0], [593, 2, 194, 2.05], [145, 2, 128, 2.26], [8915, 2, 164, 2.16], [2778, 2, 133, 2.37], [1776, 1, 94, 2.44], [146, 2, 128, 2.27], [206, 2, 93, 1.99], [6936, 2, 242, 3.78], [8648, 2, 189, 4.84], [151, 1, 57, 1.98], [2328, 2, 128, 2.85], [8650, 2, 189, 5.13], [5151, 2, 20, 3.18], [248, 1, 46, 1.99], [2050, 3, 203, 2.91], [88, 10, 474, 4.67], [7886, 4, 122, 2.14], [74, 1, 169, 4.84], [1446, 2, 130, 2.74], [362, 2, 121, 2.2], [7004, 1, 68, 1.99], [2057, 3, 407, 2.17], [2991, 3, 136, 5.48], [1007, 2, 231, 2.12], [2055, 3, 407, 2.09], [147, 1, 75, 3.81], [8649, 2, 189, 5.22], [3889, 1, 106, 2.11], [11234, 2, 157, 2.57], [10, 2, 44, 4.7], [7005, 1, 68, 2.0], [1429, 2, 130, 2.38], [345, 3, 257, 2.35], [307, 2, 126, 2.37], [12870, 1, 116, 5.58], [5081, 2, 161, 2.57], [10825, 21, 530, 3.51], [7036, 1, 108, 3.05], [57, 1, 73, 2.09], [1504, 2, 174, 2.31], [3478, 2, 64, 3.44], [1006, 2, 194, 2.4], [10149, 3, 760, 2.99], [7084, 3, 109, 4.12], [3891, 1, 106, 3.43], [21793, 1, 198, 5.88], [167, 3, 192, 3.58], [94, 4, 102, 3.41], [411, 2, 93, 1.99], [308, 1, 143, 5.79], [9827, 3, 74, 2.19], [3893, 1, 106, 3.43], [79, 1, 41, 1.97], [432, 3, 259, 2.45], [23, 1, 95, 2.54], [8677, 3, 251, 2.57]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 6, 0.97], [305, 2, 4, 0.75], [6935, 2, 8, 1.27], [326, 2, 4, 0.47], [141, 2, 4, 0.39], [144, 2, 4, 0.55], [151, 1, 4, 0.46], [362, 2, 4, 0.54], [12721, 2, 6, 0.96], [593, 2, 5, 0.35], [146, 2, 4, 0.58], [145, 2, 4, 0.44], [2328, 2, 4, 0.55], [206, 2, 4, 0.39], [8648, 2, 4, 0.77], [8915, 2, 5, 0.37], [143, 2, 4, 0.58], [6936, 2, 5, 1.17], [990, 2, 4, 0.62], [20252, 2, 4, 0.5], [8650, 2, 4, 1.15], [5151, 2, 4, 0.55], [1007, 2, 5, 0.39], [2778, 2, 4, 0.58], [248, 1, 4, 0.39], [88, 10, 8, 1.13], [2050, 3, 4, 0.76], [76, 2, 4, 1.11], [8649, 2, 4, 1.15], [22247, 2, 4, 1.26], [10149, 3, 15, 1.32], [10, 2, 4, 0.97], [2054, 3, 4, 0.57], [8677, 3, 5, 1.56], [412, 1, 4, 0.91], [2055, 3, 4, 0.65], [361, 2, 4, 0.42], [13028, 3, 4, 0.5], [7004, 1, 4, 0.4], [413, 1, 4, 0.35], [411, 2, 4, 0.48], [10825, 21, 8, 0.37], [8938, 2, 5, 0.37], [11681, 2, 5, 2.33], [1446, 2, 4, 0.53], [307, 2, 4, 0.58], [7084, 3, 4, 0.88], [3478, 2, 4, 1.28], [1429, 2, 4, 0.54], [3495, 3, 13, 1.31], [1006, 2, 4, 0.59], [74, 1, 4, 0.84], [5081, 2, 4, 0.54], [140, 2, 4, 0.47], [308, 1, 4, 2.44], [1492, 1, 4, 0.38], [7036, 1, 4, 0.54], [7005, 1, 4, 0.4], [167, 3, 4, 1.35], [45, 2, 4, 1.12], [10574, 3, 5, 0.37], [9827, 3, 4, 0.48], [1124, 2, 5, 0.74], [12870, 1, 4, 2.33], [8676, 2, 4, 0.49], [168, 3, 4, 0.79], [94, 4, 4, 0.51], [1504, 2, 4, 0.45], [11234, 2, 4, 0.63], [415, 1, 4, 0.73], [8651, 2, 4, 1.22], [148, 1, 4, 0.45], [8853, 2, 5, 1.32], [432, 3, 4, 0.62], [6097, 29, 4, 1.86], [416, 1, 4, 0.73], [23, 1, 4, 0.48], [6097, 80, 4, 1.86], [20256, 2, 4, 0.35], [490, 1, 4, 0.51], [95, 3, 13, 0.54], [5208, 3, 5, 0.39], [3980, 4, 4, 1.25], [6098, 29, 4, 2.02], [14017, 3, 4, 0.67], [6098, 80, 4, 2.02], [414, 1, 4, 0.35], [1070, 7, 8, 0.43], [9069, 1, 4, 1.09], [8898, 3, 4, 2.17], [1126, 2, 4, 0.5], [126, 2, 4, 0.47], [22554, 10, 9, 0.48], [13034, 3, 5, 1.26], [9829, 3, 4, 0.41], [20255, 2, 4, 0.39], [20498, 1, 4, 1.05], [159, 3, 5, 0.63], [5086, 1, 4, 1.08], [5513, 2, 4, 0.48], [9784, 1, 4, 0.74], [12924, 1, 4, 0.56], [7567, 3, 4, 1.12], [22317, 3, 5, 0.51], [229, 1, 4, 2.07], [13260, 29, 4, 0.42], [1413, 15, 4, 0.45], [5811, 3, 4, 1.18], [11085, 2, 4, 0.45], [8557, 3, 4, 0.83], [5813, 3, 4, 1.08], [9082, 3, 15, 0.68], [14018, 3, 4, 0.5], [3049, 3, 4, 1.48], [9372, 1, 4, 0.39], [20498, 3, 5, 1.1], [9691, 1, 4, 0.91], [4076, 3, 4, 2.19], [506, 1, 4, 0.45], [524, 1, 4, 0.91], [470, 1, 4, 0.53], [8943, 3, 4, 0.86], [2423, 80, 4, 1.96], [11454, 2, 5, 1.47], [20486, 3, 5, 1.01], [2775, 2, 4, 0.58], [13023, 3, 5, 1.24], [1622, 1, 5, 0.35], [5584, 3, 4, 0.5], [2424, 80, 4, 2.45], [11768, 1, 4, 0.47], [3900, 3, 4, 1.18], [20486, 1, 4, 1.01], [8672, 2, 262, 4.07], [305, 2, 135, 2.64], [6935, 2, 262, 4.33], [326, 2, 84, 2.13], [141, 2, 144, 1.87], [144, 2, 139, 2.16], [151, 1, 62, 1.99], [362, 2, 131, 2.14], [12721, 2, 260, 3.08], [593, 2, 211, 1.96], [146, 2, 139, 2.22], [145, 2, 139, 1.96], [2328, 2, 139, 2.16], [206, 2, 101, 1.86], [8648, 2, 207, 3.67], [8915, 2, 178, 1.85], [143, 2, 137, 2.21], [6936, 2, 262, 3.62], [990, 2, 48, 2.31], [20252, 2, 86, 2.06], [8650, 2, 207, 4.31], [5151, 2, 22, 2.15], [1007, 2, 250, 1.96], [2778, 2, 144, 2.21], [248, 1, 51, 1.86], [88, 10, 520, 3.4], [2050, 3, 438, 2.54], [76, 2, 100, 3.44], [8649, 2, 207, 4.01], [22247, 2, 260, 4.13], [10149, 3, 795, 4.41], [10, 2, 73, 4.08], [2054, 3, 328, 3.85], [8677, 3, 271, 4.23], [412, 1, 77, 2.82], [2055, 3, 328, 3.85], [361, 2, 143, 3.37], [13028, 3, 136, 2.08], [7004, 1, 74, 1.88], [413, 1, 79, 1.89], [411, 2, 101, 2.03], [10825, 21, 594, 1.82], [8938, 2, 134, 1.65], [11681, 2, 251, 6], [1446, 2, 141, 2.71], [307, 2, 137, 2.22], [7084, 3, 119, 3.37], [3478, 2, 69, 3.51], [1429, 2, 141, 2.14], [3495, 3, 886, 3.41], [1006, 2, 211, 2.25], [74, 1, 182, 3.67], [5081, 2, 176, 2.15], [140, 2, 84, 2.01], [308, 1, 155, 5.64], [1492, 1, 34, 1.85], [7036, 1, 117, 3.63], [7005, 1, 74, 1.88], [167, 3, 209, 3.64], [45, 2, 100, 4.82], [10574, 3, 360, 1.74], [9827, 3, 81, 2.04], [1124, 2, 171, 2.9], [12870, 1, 126, 5.43], [8676, 2, 262, 3.7], [168, 3, 377, 2.62], [94, 4, 110, 3.69]]</t>
-  </si>
-  <si>
-    <t>[[11685, 2, 4, 1.37], [6935, 2, 5, 1.34], [326, 2, 4, 0.7], [130, 1, 4, 0.65], [8648, 2, 4, 0.96], [144, 2, 4, 0.47], [593, 2, 4, 0.52], [2327, 2, 4, 0.54], [589, 2, 5, 0.36], [143, 2, 4, 0.51], [205, 2, 4, 0.51], [2328, 2, 4, 0.51], [6936, 2, 4, 1.35], [11681, 2, 4, 1.37], [8650, 2, 4, 0.96], [5493, 2, 4, 0.82], [305, 2, 4, 0.51], [2778, 2, 4, 0.58], [206, 2, 4, 0.44], [141, 2, 4, 0.53], [146, 2, 4, 0.57], [2049, 3, 7, 0.42], [88, 10, 8, 0.43], [7004, 1, 4, 1.21], [615, 2, 4, 0.87], [145, 2, 4, 0.48], [7036, 1, 4, 0.43], [9507, 3, 4, 0.36], [8853, 2, 4, 1.2], [8649, 2, 4, 1.34], [1446, 2, 4, 1.11], [5491, 2, 4, 0.59], [362, 2, 4, 0.5], [434, 2, 4, 0.41], [1006, 2, 4, 0.78], [11737, 2, 4, 0.69], [2055, 3, 4, 1.73], [8938, 2, 4, 0.46], [990, 2, 4, 0.36], [12350, 1, 4, 1.27], [616, 2, 4, 0.61], [2050, 3, 4, 1.69], [417, 2, 4, 0.55], [3840, 1, 4, 0.39], [1007, 2, 4, 0.7], [523, 2, 4, 0.53], [159, 3, 5, 0.75], [12870, 1, 4, 0.92], [13028, 3, 4, 0.5], [12353, 1, 4, 3.59], [1504, 2, 4, 0.49], [2057, 3, 4, 1.78], [20927, 1, 4, 0.67], [10574, 3, 5, 1.36], [3, 2, 4, 0.38], [12349, 1, 4, 3.67], [7005, 1, 4, 0.94], [142, 2, 4, 0.52], [12346, 1, 4, 1.42], [7084, 3, 4, 0.78], [624, 2, 4, 0.81], [2991, 3, 4, 1.1], [10, 2, 4, 0.45], [9760, 29, 4, 0.47], [140, 2, 4, 0.7], [2054, 3, 4, 1.86], [21798, 1, 4, 0.71], [2775, 2, 4, 0.58], [8939, 2, 4, 0.47], [3982, 3, 10, 1.18], [21793, 1, 4, 1.13], [1429, 2, 4, 0.5], [96, 11, 13, 0.38], [6158, 2, 4, 0.68], [12269, 2, 4, 1.03], [9372, 1, 4, 0.39], [5165, 2, 5, 1.48], [12352, 1, 4, 1.29], [84, 2, 4, 0.9], [1126, 2, 4, 0.78], [10388, 2, 4, 1.14], [972, 3, 4, 1.51], [411, 2, 4, 0.65], [98, 11, 10, 0.54], [5165, 1, 4, 1.47], [2912, 1, 4, 1.26], [8898, 3, 4, 3.1], [2776, 2, 4, 1.01], [8672, 2, 4, 0.73], [413, 1, 4, 1.24], [12344, 1, 4, 1.44], [410, 1, 4, 0.9], [12351, 1, 4, 0.84], [12343, 1, 4, 3.18], [10386, 2, 4, 1.01], [13928, 1, 4, 0.47], [418, 2, 4, 0.5], [1492, 1, 4, 0.96], [12345, 1, 4, 1.27], [9784, 1, 4, 0.52], [412, 1, 4, 0.5], [11490, 1, 4, 0.53], [8677, 3, 4, 0.9], [2912, 2, 5, 1.27], [308, 1, 4, 0.95], [307, 2, 4, 0.5], [7567, 3, 4, 1.47], [159, 1, 4, 0.64], [13283, 1, 4, 2.32], [432, 3, 4, 0.47], [414, 1, 4, 0.66], [286, 3, 4, 2.38], [11770, 1, 4, 0.46], [33, 1, 4, 1.33], [5490, 2, 4, 0.45], [22317, 3, 4, 0.51], [10407, 10, 6, 0.79], [35, 1, 4, 1.33], [10410, 10, 6, 0.79], [10780, 10, 4, 1.52], [335, 3, 9, 0.37], [6497, 1, 4, 1.31], [972, 1, 4, 1.51], [10387, 2, 4, 1.04], [3478, 2, 4, 1.19], [74, 1, 4, 0.62], [9691, 1, 4, 0.39], [12347, 1, 4, 0.51], [12271, 2, 4, 1.01], [20686, 1, 4, 1.33], [2497, 2, 4, 0.6], [2331, 1, 4, 0.5], [8897, 3, 4, 3.1], [11685, 2, 235, 4.8], [6935, 2, 244, 4.26], [326, 2, 63, 3.3], [130, 1, 30, 3.14], [8648, 2, 193, 4.15], [144, 2, 130, 2.31], [593, 2, 196, 2.67], [2327, 2, 130, 2.43], [589, 2, 132, 2.05], [143, 2, 128, 2.39], [205, 2, 94, 2.38], [2328, 2, 130, 2.39], [6936, 2, 244, 4.64], [11681, 2, 235, 4.79], [8650, 2, 193, 3.92], [5493, 2, 93, 2.95], [305, 2, 127, 2.38], [2778, 2, 135, 2.51], [206, 2, 94, 2.27], [141, 2, 134, 3.03], [146, 2, 130, 2.49], [2049, 3, 477, 2.32], [88, 10, 498, 2.29], [7004, 1, 68, 3.67], [615, 2, 94, 3.05], [145, 2, 130, 2.33], [7036, 1, 109, 3.72], [9507, 3, 69, 1.56], [8853, 2, 244, 3.82], [8649, 2, 193, 3.91], [1446, 2, 131, 3.49], [5491, 2, 93, 2.53], [362, 2, 122, 2.36], [434, 2, 56, 1.96], [1006, 2, 196, 3.02], [11737, 2, 50, 2.71], [2055, 3, 395, 4.86], [8938, 2, 67, 2.22], [990, 2, 45, 2.1], [12350, 1, 519, 3.98], [616, 2, 94, 2.58], [2050, 3, 395, 4.77], [417, 2, 133, 2.45], [3840, 1, 150, 2.17], [1007, 2, 230, 2.73], [523, 2, 133, 2.5], [159, 3, 609, 2.75], [12870, 1, 117, 5.16], [13028, 3, 126, 2.57], [12353, 1, 519, 6], [1504, 2, 175, 2.34], [2057, 3, 395, 4.97], [20927, 1, 68, 3.22], [10574, 3, 436, 3.81], [3, 2, 106, 2.14], [12349, 1, 519, 6], [7005, 1, 68, 3.17], [142, 2, 133, 2.39], [12346, 1, 519, 4.23], [7084, 3, 112, 2.88], [624, 2, 94, 2.93], [2991, 3, 140, 5.75], [10, 2, 90, 2.27], [9760, 29, 62, 2.31], [140, 2, 78, 2.73], [2054, 3, 395, 5.11], [21798, 1, 120, 2.75]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 5, 0.91], [141, 2, 4, 0.48], [362, 2, 4, 0.36], [361, 2, 4, 0.59], [6935, 2, 7, 1.55], [12721, 2, 5, 1.21], [206, 2, 4, 0.47], [2049, 3, 8, 0.42], [8676, 2, 4, 0.6], [1504, 2, 5, 0.41], [8675, 2, 5, 0.73], [417, 2, 4, 0.47], [6936, 2, 4, 1.33], [3, 2, 4, 0.61], [305, 2, 4, 0.48], [523, 2, 4, 0.66], [151, 1, 4, 0.51], [22247, 2, 4, 1.0], [8650, 2, 4, 0.77], [142, 2, 4, 0.57], [8648, 2, 4, 0.38], [2328, 2, 4, 0.51], [2776, 2, 4, 0.48], [8853, 2, 4, 1.54], [616, 2, 4, 0.52], [11739, 2, 4, 1.47], [2327, 2, 4, 0.51], [411, 2, 4, 0.38], [12352, 1, 4, 1.57], [589, 2, 4, 0.37], [143, 2, 4, 0.85], [950, 1, 4, 0.37], [146, 2, 4, 0.62], [412, 1, 4, 0.78], [8674, 2, 4, 1.22], [12353, 1, 4, 1.57], [145, 2, 4, 0.49], [583, 2, 4, 0.62], [2805, 137, 5, 1.85], [6497, 1, 4, 0.46], [326, 2, 4, 0.62], [418, 2, 4, 0.46], [11738, 2, 4, 1.35], [10574, 3, 5, 1.26], [6097, 80, 4, 1.61], [9784, 1, 4, 0.85], [10149, 3, 13, 0.89], [6097, 29, 4, 1.61], [75, 2, 4, 0.49], [11234, 2, 4, 0.63], [12344, 1, 4, 0.71], [2057, 3, 4, 0.35], [1413, 15, 4, 0.51], [20252, 2, 4, 0.5], [11504, 2, 4, 0.44], [12269, 2, 4, 0.61], [2054, 3, 4, 0.5], [8915, 2, 4, 0.41], [6496, 1, 4, 0.5], [1492, 1, 4, 0.65], [247, 1, 4, 0.46], [2774, 2, 4, 0.59], [6098, 80, 4, 2.09], [12346, 1, 4, 1.57], [3429, 15, 4, 0.46], [1886, 2, 4, 0.5], [416, 1, 4, 0.95], [944, 15, 4, 0.47], [6098, 29, 4, 2.09], [2859, 15, 4, 0.71], [3934, 5, 5, 0.56], [1414, 15, 4, 0.51], [201, 3, 4, 0.51], [21793, 1, 4, 1.44], [3670, 2, 4, 1.92], [159, 3, 5, 0.72], [20555, 2, 4, 0.56], [6158, 2, 5, 0.44], [2049, 1, 4, 0.41], [3478, 2, 4, 1.28], [20686, 1, 4, 0.98], [7084, 3, 4, 1.96], [9785, 1, 4, 1.01], [12526, 2, 4, 1.1], [3430, 15, 4, 0.92], [8599, 1, 4, 0.37], [9342, 2, 5, 0.38], [2050, 3, 4, 0.35], [8938, 2, 4, 0.54], [4253, 1, 4, 0.54], [1413, 16, 4, 0.51], [1703, 2, 4, 0.75], [9760, 29, 4, 0.6], [11887, 2, 5, 0.37], [11885, 2, 4, 0.37], [107, 2, 4, 1.18], [415, 1, 4, 0.95], [11811, 1, 4, 0.38], [11770, 1, 4, 1.08], [436, 2, 4, 0.51], [94, 4, 4, 1.91], [11490, 1, 4, 0.48], [107, 7, 5, 1.2], [3673, 2, 4, 2.08], [2438, 2, 5, 1.32], [2421, 80, 4, 1.42], [11844, 2, 4, 0.42], [11671, 1, 4, 1.1], [5939, 3, 4, 0.39], [4940, 1, 4, 0.43], [1309, 1, 4, 1.35], [11771, 1, 4, 1.61], [140, 2, 4, 0.62], [11160, 1, 4, 0.44], [3495, 3, 10, 0.98], [7036, 1, 4, 0.43], [1668, 1, 4, 0.78], [409, 1, 4, 0.42], [9491, 21, 10, 0.58], [5813, 3, 5, 0.98], [11954, 1, 4, 0.42], [105, 3, 4, 0.44], [12347, 1, 4, 0.63], [23920, 2, 4, 0.42], [12764, 2, 5, 0.73], [9690, 1, 4, 0.51], [19687, 1, 4, 1.2], [11808, 1, 4, 0.43], [2421, 29, 4, 1.46], [2108, 3, 5, 0.54], [5811, 3, 5, 0.98], [8274, 3, 4, 2.3], [11180, 1, 4, 0.6], [8672, 2, 286, 3.69], [141, 2, 156, 2.66], [362, 2, 142, 2.67], [361, 2, 156, 2.87], [6935, 2, 280, 6], [12721, 2, 284, 4.58], [206, 2, 36, 2.11], [2049, 3, 368, 2.36], [8676, 2, 286, 2.88], [1504, 2, 204, 2.73], [8675, 2, 286, 3.17], [417, 2, 156, 2.66], [6936, 2, 280, 4.92], [3, 2, 121, 2.91], [305, 2, 146, 2.67], [523, 2, 156, 3.01], [151, 1, 33, 2.73], [22247, 2, 284, 3.61], [8650, 2, 225, 3.93], [142, 2, 156, 2.83], [8648, 2, 225, 3.8], [2328, 2, 150, 3.64], [2776, 2, 157, 2.67], [8853, 2, 280, 4.81], [616, 2, 109, 2.74], [11739, 2, 38, 4.3], [2327, 2, 150, 3.61], [411, 2, 109, 2.48], [12352, 1, 613, 4.67], [589, 2, 51, 1.75], [143, 2, 147, 3.34], [950, 1, 20, 1.74], [146, 2, 150, 2.92], [412, 1, 83, 3.98], [8674, 2, 286, 4.03], [12353, 1, 613, 4.67], [145, 2, 150, 2.69], [583, 2, 45, 3.28], [2805, 137, 181, 5.29], [6497, 1, 38, 2.63], [326, 2, 45, 3.28], [418, 2, 142, 2.63], [11738, 2, 57, 4.27], [10574, 3, 499, 4.27], [6097, 80, 65, 4.74], [9784, 1, 72, 3.35], [10149, 3, 894, 3.33], [6097, 29, 32, 4.74], [75, 2, 144, 3.67], [11234, 2, 184, 3.11], [12344, 1, 613, 3.08], [2057, 3, 161, 1.72], [1413, 15, 99, 2.72], [20252, 2, 93, 2.69], [11504, 2, 142, 2.59], [12269, 2, 64, 2.89], [8915, 2, 128, 2.36], [6496, 1, 41, 2.7], [1492, 1, 37, 2.99], [247, 1, 89, 2.63], [2774, 2, 204, 4.89], [6098, 80, 73, 5.62], [12346, 1, 613, 4.67], [3429, 15, 53, 2.63], [1886, 2, 156, 2.71], [416, 1, 85, 3.52], [944, 15, 44, 2.65]]</t>
-  </si>
-  <si>
-    <t>[[2327, 2, 4, 0.52], [6935, 2, 5, 1.69], [305, 2, 4, 0.45], [2778, 2, 4, 0.5], [144, 2, 4, 0.54], [130, 1, 4, 0.45], [589, 2, 5, 0.5], [143, 2, 4, 0.44], [2328, 2, 4, 0.76], [6936, 2, 4, 1.66], [8648, 2, 4, 1.15], [2775, 2, 4, 0.5], [326, 2, 4, 1.22], [8650, 2, 4, 1.53], [593, 2, 4, 0.4], [145, 2, 4, 0.5], [146, 2, 4, 0.57], [3840, 1, 4, 0.79], [7036, 1, 4, 1.2], [2776, 2, 4, 0.62], [2049, 3, 5, 0.42], [615, 2, 4, 1.37], [616, 2, 4, 1.27], [88, 10, 8, 1.0], [151, 1, 4, 0.51], [141, 2, 4, 0.39], [7004, 1, 4, 1.24], [11681, 2, 5, 1.81], [1124, 2, 4, 0.79], [1446, 2, 4, 0.78], [9760, 29, 4, 0.67], [8853, 2, 4, 1.7], [5491, 2, 4, 0.45], [990, 2, 4, 0.77], [1007, 2, 4, 0.46], [159, 3, 5, 0.67], [362, 2, 4, 0.52], [1504, 2, 4, 0.38], [9372, 1, 4, 1.34], [8649, 2, 4, 1.53], [12870, 1, 4, 1.18], [3893, 1, 4, 0.39], [2912, 1, 4, 1.27], [8938, 2, 4, 0.54], [434, 2, 4, 0.49], [624, 2, 4, 1.22], [3889, 1, 4, 0.75], [2054, 3, 4, 0.5], [5165, 1, 4, 1.52], [1429, 2, 4, 0.78], [378, 2, 4, 2.29], [7005, 1, 4, 1.08], [140, 2, 4, 1.22], [7084, 3, 4, 0.57], [3891, 1, 4, 0.41], [2991, 3, 4, 1.1], [10574, 3, 4, 1.36], [1006, 2, 4, 0.55], [7886, 4, 4, 0.44], [7573, 1, 9, 0.82], [10149, 3, 13, 1.21], [5208, 3, 4, 0.97], [75, 2, 4, 1.0], [1622, 1, 4, 0.45], [12352, 1, 4, 0.58], [21793, 1, 4, 1.84], [3, 2, 4, 0.62], [20927, 1, 4, 0.76], [997, 2, 4, 1.26], [12353, 1, 4, 0.58], [5165, 2, 5, 1.57], [11234, 2, 4, 1.25], [12721, 2, 4, 0.96], [346, 3, 4, 0.43], [1886, 2, 4, 0.56], [22247, 2, 4, 1.14], [11811, 1, 4, 0.44], [147, 1, 4, 1.32], [229, 1, 4, 0.49], [996, 2, 4, 0.6], [12346, 1, 4, 0.58], [20252, 2, 4, 0.48], [972, 3, 5, 0.51], [94, 4, 4, 0.4], [998, 2, 4, 0.81], [9491, 21, 10, 0.44], [12345, 1, 4, 0.58], [2912, 2, 7, 1.24], [76, 2, 4, 0.6], [35, 1, 4, 0.79], [11685, 2, 5, 1.83], [439, 1, 4, 0.56], [8104, 1, 4, 0.59], [6158, 2, 4, 2.61], [413, 1, 4, 0.88], [12343, 1, 4, 0.58], [2424, 80, 4, 2.39], [5076, 1, 4, 0.47], [13928, 1, 4, 0.7], [2805, 137, 4, 0.93], [5209, 3, 4, 0.97], [8676, 2, 4, 1.2], [12350, 1, 4, 0.58], [2774, 2, 4, 0.55], [148, 1, 4, 1.33], [83, 2, 4, 0.45], [412, 1, 4, 0.44], [418, 2, 4, 0.63], [33, 1, 4, 0.93], [3495, 3, 10, 0.92], [2336, 3, 5, 0.46], [20256, 2, 4, 0.52], [8898, 3, 4, 0.5], [7887, 4, 4, 0.47], [38, 1, 4, 0.63], [415, 1, 4, 0.53], [96, 11, 13, 0.38], [10407, 10, 6, 1.18], [11739, 2, 4, 1.37], [34, 1, 4, 0.57], [2424, 29, 4, 2.36], [13928, 2, 4, 0.7], [84, 2, 4, 0.9], [126, 2, 4, 1.22], [3048, 3, 4, 1.15], [11953, 1, 4, 0.55], [12344, 1, 4, 0.58], [11772, 1, 4, 0.46], [12351, 1, 4, 0.58], [8939, 2, 4, 0.49], [5584, 3, 4, 1.02], [10410, 10, 9, 1.18], [39, 1, 4, 0.6], [2327, 2, 147, 2.59], [6935, 2, 272, 5.53], [305, 2, 143, 2.46], [2778, 2, 153, 2.56], [144, 2, 147, 2.63], [130, 1, 19, 2.84], [589, 2, 149, 2.51], [143, 2, 144, 2.45], [2328, 2, 147, 3.03], [6936, 2, 272, 4.9], [8648, 2, 218, 4.71], [2775, 2, 153, 2.56], [326, 2, 87, 4.37], [8650, 2, 218, 4.44], [593, 2, 222, 2.57], [145, 2, 147, 2.56], [146, 2, 147, 2.68], [3840, 1, 167, 3.09], [7036, 1, 125, 4.66], [2776, 2, 153, 2.77], [2049, 3, 359, 2.34], [615, 2, 104, 4.64], [616, 2, 104, 3.97], [88, 10, 549, 3.73], [151, 1, 43, 2.78], [141, 2, 152, 2.36], [11681, 2, 260, 5.81], [1124, 2, 181, 3.1], [1446, 2, 99, 3.29], [9760, 29, 70, 2.87], [8853, 2, 272, 4.99], [5491, 2, 102, 3.16], [990, 2, 25, 2.76], [1007, 2, 263, 2.48], [159, 3, 687, 2.82], [362, 2, 138, 2.59], [1504, 2, 199, 2.33], [9372, 1, 221, 4.81], [8649, 2, 218, 4.79], [12870, 1, 134, 4.83], [3893, 1, 122, 2.35], [2912, 1, 47, 3.96], [8938, 2, 125, 2.46], [434, 2, 104, 2.53], [624, 2, 104, 3.89], [3889, 1, 122, 3.01], [2054, 3, 157, 1.88], [5165, 1, 46, 4.64], [1429, 2, 148, 3.1], [378, 2, 218, 5.84], [7005, 1, 26, 2.97], [140, 2, 87, 4.37], [7084, 3, 128, 2.69], [3891, 1, 122, 2.4], [2991, 3, 158, 5.28], [10574, 3, 328, 4.69], [1006, 2, 222, 2.65], [7886, 4, 70, 2.11], [7573, 1, 359, 3.74], [10149, 3, 864, 3.73], [5208, 3, 541, 3.41], [75, 2, 141, 3.52], [1622, 1, 105, 2.47], [12352, 1, 617, 2.72], [21793, 1, 233, 5.69], [3, 2, 118, 2.78], [20927, 1, 77, 3.03]]</t>
-  </si>
-  <si>
-    <t>[[2778, 2, 11, 1.08], [6935, 2, 19, 5], [305, 2, 7, 0.88], [8672, 2, 10, 1.91], [615, 2, 7, 1.73], [1504, 2, 11, 1.34], [2775, 2, 7, 1.29], [145, 2, 7, 0.9], [2776, 2, 7, 2.59], [8853, 2, 7, 3.5], [2327, 2, 7, 1.82], [130, 1, 7, 1.86], [12721, 2, 11, 1.69], [143, 2, 7, 0.93], [2328, 2, 7, 1.85], [146, 2, 7, 1.14], [2049, 3, 14, 0.75], [361, 2, 7, 1.08], [11681, 2, 13, 4.48], [616, 2, 7, 2.52], [362, 2, 7, 0.94], [5491, 2, 7, 1.03], [205, 2, 7, 0.74], [141, 2, 7, 1.0], [2497, 2, 7, 1.14], [8650, 2, 9, 3.6], [144, 2, 7, 0.97], [1124, 2, 10, 1.74], [5493, 2, 7, 1.4], [417, 2, 7, 0.87], [8676, 2, 7, 1.1], [8673, 2, 7, 2.94], [3670, 2, 9, 4.76], [2774, 2, 7, 3.92], [8648, 2, 7, 2.98], [589, 2, 7, 0.79], [3, 2, 7, 1.21], [308, 1, 13, 1.15], [206, 2, 7, 0.74], [6097, 80, 7, 3.42], [2423, 29, 7, 5], [22247, 2, 7, 2.24], [6497, 1, 7, 0.85], [11836, 2, 7, 0.94], [8674, 2, 7, 2.25], [624, 2, 7, 2.17], [2055, 3, 7, 0.84], [2423, 80, 7, 5], [523, 2, 7, 1.22], [12344, 1, 7, 1.3], [593, 2, 8, 0.89], [6097, 29, 7, 3.43], [6098, 80, 7, 3.83], [990, 2, 7, 1.41], [12720, 2, 7, 1.69], [75, 2, 7, 1.04], [8915, 2, 7, 0.75], [88, 10, 14, 2.51], [944, 15, 7, 0.85], [326, 2, 7, 2.08], [60, 3, 8, 1.5], [13260, 29, 7, 0.66], [3429, 15, 7, 0.85], [1492, 1, 7, 1.2], [1413, 15, 7, 0.99], [411, 2, 7, 0.74], [412, 1, 7, 2.75], [2422, 80, 7, 3.61], [6496, 1, 7, 0.91], [10149, 3, 21, 0.95], [378, 2, 7, 4.21], [2422, 29, 7, 3.61], [7704, 2, 7, 0.78], [6098, 29, 7, 3.83], [159, 3, 9, 1.37], [151, 1, 7, 1.31], [22316, 3, 7, 0.85], [11738, 2, 7, 3.53], [20252, 2, 7, 0.98], [13264, 29, 7, 1.01], [12269, 2, 7, 0.83], [345, 3, 7, 1.01], [13258, 29, 7, 2.26], [1490, 1, 7, 0.65], [10407, 10, 10, 2.08], [2331, 1, 7, 1.32], [22558, 3, 7, 1.74], [307, 2, 7, 1.61], [1163, 3, 7, 2.67], [416, 1, 7, 2.8], [201, 3, 7, 1.01], [2821, 3, 13, 0.77], [114, 3, 7, 1.76], [2912, 1, 7, 2.42], [2438, 1, 7, 2.49], [149, 2, 7, 1.95], [418, 2, 7, 0.68], [7705, 2, 7, 0.78], [13259, 29, 7, 2.54], [957, 2, 7, 0.93], [432, 3, 7, 3.74], [12229, 2, 7, 1.29], [7706, 2, 7, 0.78], [21793, 1, 7, 3.5], [11687, 2, 7, 1.02], [8938, 2, 7, 1.0], [11844, 2, 7, 0.95], [5490, 2, 7, 0.85], [1413, 16, 7, 0.99], [7036, 1, 7, 0.87], [1414, 15, 7, 0.91], [10406, 10, 12, 2.42], [21713, 3, 13, 0.88], [20255, 2, 7, 0.93], [2421, 80, 7, 2.62], [12870, 1, 7, 4.46], [9784, 1, 7, 1.67], [10408, 10, 10, 1.81], [10410, 10, 10, 2.08], [11402, 1, 7, 0.66], [3478, 2, 7, 2.36], [7084, 3, 7, 0.67], [19687, 1, 7, 2.21], [11161, 1, 10, 0.93], [956, 2, 7, 1.14], [2703, 3, 7, 0.83], [1886, 2, 7, 0.92], [21781, 2, 7, 0.86], [107, 7, 8, 2.38], [22125, 2, 7, 0.66], [10411, 10, 10, 1.97], [11690, 2, 7, 0.88], [11490, 1, 7, 1.02], [2422, 80, 177, 5.4], [6496, 1, 41, 2.7], [10149, 3, 901, 2.74], [378, 2, 224, 5.99], [2422, 29, 35, 5.4], [7704, 2, 181, 2.56], [6098, 29, 37, 5.62], [159, 3, 706, 3.16], [151, 1, 33, 2.73], [22316, 3, 317, 2.64], [11738, 2, 28, 4.95], [20252, 2, 92, 2.76], [13264, 29, 72, 2.79], [12269, 2, 64, 2.62], [345, 3, 296, 2.8], [13258, 29, 39, 4.04], [1490, 1, 51, 2.44], [10407, 10, 1196, 3.88], [2331, 1, 118, 3.11], [22558, 3, 162, 2.8], [307, 2, 148, 3.39], [416, 1, 85, 4.58], [201, 3, 296, 2.8], [2821, 3, 1331, 2.55], [114, 3, 243, 3.54], [2912, 1, 48, 4.2], [2438, 1, 52, 4.27], [149, 2, 87, 3.74], [418, 2, 143, 2.47], [7705, 2, 181, 2.56], [13259, 29, 35, 4.33], [957, 2, 106, 2.71], [432, 3, 299, 5.53], [12229, 2, 150, 3.07], [7706, 2, 181, 2.56], [21793, 1, 241, 5.28], [11687, 2, 302, 2.8], [8938, 2, 191, 2.78], [11844, 2, 276, 2.73], [5490, 2, 108, 2.63], [1413, 16, 50, 2.77], [7036, 1, 127, 2.65], [1414, 15, 99, 2.69], [10406, 10, 1775, 4.18], [21713, 3, 1116, 2.67], [20255, 2, 93, 2.71], [2421, 80, 208, 4.41], [12870, 1, 136, 6], [9784, 1, 72, 3.45], [10408, 10, 781, 3.6], [10410, 10, 1196, 3.88], [11402, 1, 45, 2.44], [3478, 2, 75, 4.14], [19687, 1, 30, 3.99], [11161, 1, 516, 2.71], [956, 2, 106, 2.92], [2703, 3, 328, 2.61], [1886, 2, 156, 2.71], [21781, 2, 104, 2.65], [107, 7, 238, 4.16], [22125, 2, 62, 2.45], [10411, 10, 781, 3.76], [11690, 2, 302, 2.66], [11490, 1, 109, 2.8]]</t>
-  </si>
-  <si>
-    <t>[[141, 2, 7, 0.88], [2328, 2, 7, 1.85], [8650, 2, 9, 2.32], [362, 2, 7, 0.94], [5491, 2, 7, 1.11], [5493, 2, 7, 1.48], [130, 1, 7, 1.86], [589, 2, 7, 0.95], [2327, 2, 7, 1.82], [11685, 2, 7, 3.95], [326, 2, 7, 1.85], [8672, 2, 10, 1.91], [417, 2, 7, 0.87], [6935, 2, 19, 3.74], [1124, 2, 10, 1.27], [11681, 2, 13, 5], [206, 2, 7, 1.04], [8648, 2, 7, 2.53], [6936, 2, 9, 2.57], [142, 2, 7, 1.05], [8915, 2, 7, 0.71], [12721, 2, 11, 1.45], [1446, 2, 7, 1.55], [2049, 3, 14, 0.73], [11838, 2, 7, 1.02], [523, 2, 7, 1.22], [8676, 2, 7, 1.1], [615, 2, 7, 1.37], [305, 2, 7, 0.88], [616, 2, 7, 1.32], [412, 1, 7, 1.78], [413, 1, 7, 1.72], [11739, 2, 7, 3.39], [10574, 3, 9, 2.49], [145, 2, 7, 0.9], [2775, 2, 7, 0.78], [21793, 1, 7, 3.5], [1429, 2, 7, 1.03], [76, 2, 7, 2.04], [8675, 2, 9, 1.39], [990, 2, 7, 1.65], [8673, 2, 7, 2.87], [143, 2, 7, 1.06], [8938, 2, 7, 1.0], [11836, 2, 7, 0.86], [146, 2, 7, 1.14], [8674, 2, 7, 2.25], [6158, 2, 8, 2.65], [151, 1, 7, 1.31], [2776, 2, 7, 1.37], [2050, 3, 7, 0.64], [12720, 2, 7, 1.45], [10149, 3, 21, 1.56], [3495, 3, 17, 1.77], [12350, 1, 7, 1.4], [2054, 3, 7, 0.91], [75, 2, 7, 2.15], [2057, 3, 7, 0.64], [11738, 2, 7, 3.18], [1504, 2, 11, 1.08], [144, 2, 7, 0.97], [8939, 2, 7, 0.93], [416, 1, 7, 1.34], [22316, 3, 7, 0.85], [159, 3, 9, 1.37], [88, 10, 14, 2.51], [2859, 15, 7, 2.02], [7885, 4, 7, 0.81], [418, 2, 7, 0.68], [7084, 3, 7, 3.6], [10993, 2, 7, 0.85], [21798, 1, 7, 0.95], [20252, 2, 7, 0.92], [12346, 1, 7, 1.06], [414, 1, 7, 1.72], [7705, 2, 7, 2.28], [410, 1, 7, 0.88], [2424, 29, 7, 3.84], [12526, 2, 7, 3.89], [5165, 1, 7, 2.92], [2423, 29, 7, 3.65], [11844, 2, 7, 0.78], [2423, 80, 7, 3.59], [12351, 1, 7, 0.89], [6494, 1, 7, 0.77], [11490, 1, 7, 0.88], [378, 2, 7, 3.17], [12373, 1, 11, 2.99], [2424, 80, 7, 3.81], [13023, 3, 10, 2.63], [13034, 3, 9, 2.15], [60, 3, 8, 2.67], [1414, 15, 7, 1.02], [201, 3, 7, 2.66], [11770, 1, 7, 1.83], [1519, 3, 15, 0.69], [345, 3, 7, 1.02], [6952, 1, 7, 2.01], [159, 1, 7, 1.12], [9126, 1, 7, 1.58], [13928, 1, 7, 0.82], [11808, 1, 7, 0.8], [3430, 15, 7, 2.42], [20927, 1, 7, 0.87], [3429, 15, 7, 0.85], [11954, 1, 7, 0.77], [11811, 1, 7, 1.93], [432, 3, 7, 3.74], [566, 2, 7, 0.92], [2331, 1, 7, 1.32], [11504, 2, 7, 0.77], [10407, 10, 10, 2.08], [5584, 3, 7, 3.34], [114, 3, 7, 0.91], [7886, 4, 7, 0.81], [7004, 1, 7, 0.96], [1490, 1, 7, 3.25], [105, 3, 7, 0.81], [11089, 1, 7, 0.82], [1492, 1, 7, 1.2], [11953, 1, 7, 0.89], [8274, 3, 7, 4.22], [2703, 3, 7, 0.82], [6098, 80, 7, 4.17], [944, 15, 7, 0.85], [10410, 10, 10, 2.08], [1886, 2, 7, 0.92], [22317, 3, 8, 0.85], [94, 4, 7, 4.31], [11161, 1, 10, 0.93], [6097, 80, 7, 3.42], [3891, 1, 7, 3.83], [11485, 24, 7, 1.03], [418, 2, 143, 2.47], [7084, 3, 128, 5.39], [10993, 2, 55, 2.63], [21798, 1, 139, 2.73], [20252, 2, 93, 2.7], [12346, 1, 623, 2.85], [414, 1, 86, 3.5], [7705, 2, 175, 4.06], [410, 1, 53, 2.3], [2424, 29, 33, 5.62], [12526, 2, 271, 5.68], [5165, 1, 48, 4.7], [2423, 29, 36, 5.44], [11844, 2, 276, 2.57], [2423, 80, 180, 5.38], [12351, 1, 623, 2.68], [6494, 1, 43, 2.49], [11490, 1, 109, 2.66], [378, 2, 225, 4.95], [12373, 1, 540, 4.77], [2424, 80, 163, 5.6], [13023, 3, 589, 4.42], [13034, 3, 589, 3.94], [60, 3, 797, 4.46], [1414, 15, 99, 2.8], [201, 3, 297, 4.45], [11770, 1, 215, 3.62], [1519, 3, 1116, 2.29], [345, 3, 297, 2.8], [6952, 1, 188, 3.79], [159, 1, 39, 2.9], [9126, 1, 70, 3.36], [13928, 1, 48, 2.6], [11808, 1, 486, 2.57], [3430, 15, 69, 4.2], [20927, 1, 79, 2.66], [3429, 15, 53, 2.63], [11954, 1, 202, 2.56], [11811, 1, 449, 3.71], [432, 3, 299, 5.53], [566, 2, 174, 2.7], [2331, 1, 118, 3.11], [11504, 2, 143, 2.55], [10407, 10, 1196, 3.88], [5584, 3, 230, 5.12], [114, 3, 205, 2.62], [7886, 4, 72, 2.23], [7004, 1, 79, 2.75], [1490, 1, 48, 5.03], [105, 3, 205, 2.52], [11089, 1, 172, 2.61], [1492, 1, 37, 2.99], [11953, 1, 202, 2.68], [2703, 3, 325, 2.6], [6098, 80, 73, 5.95], [944, 15, 44, 2.63], [10410, 10, 1196, 3.88], [1886, 2, 156, 2.71], [22317, 3, 315, 2.63], [94, 4, 115, 6], [11161, 1, 516, 2.71], [6097, 80, 67, 5.21], [3891, 1, 122, 5.61], [11485, 24, 221, 2.81]]</t>
-  </si>
-  <si>
-    <t>[[326, 2, 8, 0.98], [6935, 2, 19, 3.05], [589, 2, 10, 0.8], [141, 2, 7, 0.99], [75, 2, 7, 1.83], [3, 2, 7, 0.82], [1776, 1, 7, 1.07], [8915, 2, 9, 0.7], [2778, 2, 7, 1.06], [6936, 2, 10, 2.67], [8672, 2, 10, 2.91], [593, 2, 11, 0.83], [305, 2, 7, 0.88], [206, 2, 7, 0.71], [151, 1, 7, 0.81], [8648, 2, 7, 3.21], [2328, 2, 7, 0.94], [88, 10, 14, 2.44], [11681, 2, 10, 4.88], [990, 2, 7, 1.16], [8650, 2, 7, 3.25], [412, 1, 7, 1.67], [5151, 2, 7, 0.73], [2050, 3, 7, 1.21], [76, 2, 7, 2.04], [144, 2, 7, 0.93], [10149, 3, 25, 3.26], [345, 3, 8, 1.82], [2991, 3, 7, 3.64], [22247, 2, 9, 2.5], [3478, 2, 7, 2.36], [57, 1, 7, 0.7], [146, 2, 7, 1.03], [45, 2, 7, 2.65], [143, 2, 7, 0.84], [417, 2, 7, 2.37], [413, 1, 7, 0.73], [167, 3, 7, 2.0], [21793, 1, 7, 3.62], [1446, 2, 7, 1.56], [74, 1, 7, 2.52], [2055, 3, 7, 2.83], [346, 1, 7, 0.82], [201, 3, 8, 3.06], [168, 3, 7, 1.38], [10, 2, 9, 3.05], [7036, 1, 7, 2.84], [11234, 2, 7, 1.26], [1429, 2, 7, 0.98], [7084, 3, 7, 2.45], [335, 3, 18, 0.69], [8938, 2, 8, 0.62], [12721, 2, 10, 1.92], [5081, 2, 7, 1.0], [3495, 3, 21, 1.57], [8649, 2, 7, 2.97], [13028, 3, 7, 0.92], [308, 1, 7, 4.48], [410, 1, 7, 0.73], [3889, 1, 7, 1.88], [12870, 1, 7, 4.27], [10825, 21, 14, 0.68], [3893, 1, 7, 1.17], [96, 11, 23, 0.81], [1492, 1, 7, 0.7], [1006, 2, 7, 1.22], [1504, 2, 7, 0.89], [418, 2, 7, 0.77], [5208, 3, 13, 1.06], [3891, 1, 7, 1.37], [145, 2, 7, 0.79], [9827, 3, 7, 0.86], [94, 4, 7, 2.54], [8853, 2, 11, 2.76], [1490, 1, 7, 0.85], [13260, 29, 7, 0.85], [5812, 3, 8, 2.12], [416, 1, 7, 1.46], [432, 3, 7, 0.75], [8651, 2, 7, 2.11], [25, 1, 7, 1.75], [142, 2, 7, 2.37], [8939, 2, 7, 0.83], [12353, 1, 7, 1.55], [20256, 2, 7, 0.69], [21269, 3, 7, 4.99], [950, 1, 7, 0.97], [5086, 1, 7, 2.04], [1243, 2, 7, 1.69], [33, 1, 7, 1.21], [9069, 1, 7, 2.06], [229, 1, 7, 3.82], [998, 2, 7, 2.91], [12350, 1, 7, 3.09], [140, 2, 7, 0.86], [2878, 1, 7, 1.09], [7567, 3, 7, 3.13], [126, 2, 7, 0.86], [346, 3, 8, 0.74], [9829, 3, 7, 0.76], [8274, 3, 7, 1.42], [9691, 1, 7, 2.81], [35, 1, 7, 0.84], [5584, 3, 7, 0.82], [1070, 7, 13, 0.65], [997, 2, 7, 1.11], [3980, 4, 7, 2.59], [5660, 2, 7, 1.94], [5209, 3, 7, 0.68], [11914, 1, 7, 1.52], [1519, 3, 17, 0.69], [8898, 3, 7, 3.98], [159, 3, 8, 1.33], [9372, 1, 7, 2.03], [5513, 2, 7, 0.84], [1091, 1, 7, 1.1], [24, 1, 7, 1.75], [2775, 2, 7, 1.06], [13034, 3, 8, 2.48], [9081, 3, 12, 3.64], [523, 2, 7, 1.37], [12661, 1, 7, 0.86], [20255, 2, 7, 0.71], [11808, 1, 7, 1.44], [307, 2, 7, 1.18], [11491, 2, 7, 0.93], [434, 2, 7, 1.13], [1163, 3, 7, 0.87], [12225, 1, 7, 0.96], [336, 15, 7, 0.8], [952, 4, 7, 3.72], [8945, 3, 8, 5.0], [9082, 3, 24, 1.19], [418, 2, 131, 1.93], [5208, 3, 392, 2.09], [3891, 1, 115, 2.52], [145, 2, 139, 1.94], [9827, 3, 81, 2.01], [94, 4, 110, 3.69], [8853, 2, 262, 3.91], [1490, 1, 47, 2.0], [13260, 29, 67, 2.0], [5812, 3, 540, 3.28], [416, 1, 79, 2.61], [432, 3, 281, 1.91], [8651, 2, 207, 3.26], [25, 1, 103, 2.9], [142, 2, 143, 3.53], [8939, 2, 134, 1.85], [12353, 1, 557, 2.7], [20256, 2, 86, 1.84], [21269, 3, 270, 6], [950, 1, 55, 2.12], [5086, 1, 169, 3.19], [1243, 2, 90, 2.84], [33, 1, 103, 2.36], [9069, 1, 112, 3.21], [229, 1, 75, 4.97], [998, 2, 221, 4.07], [12350, 1, 557, 4.25], [140, 2, 84, 2.01], [2878, 1, 74, 2.24], [7567, 3, 64, 4.28], [126, 2, 84, 2.01], [346, 3, 584, 1.88], [9829, 3, 64, 1.91], [8274, 3, 159, 2.19], [9691, 1, 69, 3.96], [35, 1, 103, 1.99], [5584, 3, 231, 1.97], [1070, 7, 549, 1.81], [997, 2, 221, 2.26], [3980, 4, 443, 3.74], [5660, 2, 162, 3.09], [5209, 3, 522, 1.84], [11914, 1, 80, 2.67], [1519, 3, 1544, 1.83], [8898, 3, 260, 5.13], [159, 3, 651, 2.48], [9372, 1, 209, 3.19], [5513, 2, 69, 1.99], [1091, 1, 44, 2.25], [24, 1, 103, 2.9], [2775, 2, 144, 2.21], [13034, 3, 540, 3.64], [9081, 3, 422, 4.8], [523, 2, 143, 2.52], [12661, 1, 75, 2.01], [20255, 2, 86, 1.86], [11808, 1, 443, 2.59], [307, 2, 137, 2.33], [11491, 2, 131, 2.08], [434, 2, 98, 2.28], [1163, 3, 238, 1.89], [12225, 1, 153, 2.11], [336, 15, 105, 1.96], [952, 4, 66, 4.87], [8945, 3, 540, 6], [9082, 3, 2299, 2.38]]</t>
-  </si>
-  <si>
-    <t>[[88, 10, 16, 2.1], [2327, 2, 7, 0.96], [589, 2, 8, 0.87], [2778, 2, 7, 0.93], [6935, 2, 11, 3.9], [2328, 2, 7, 1.39], [130, 1, 7, 1.86], [615, 2, 7, 3.0], [305, 2, 7, 0.82], [616, 2, 7, 2.33], [6936, 2, 7, 3.27], [326, 2, 7, 2.74], [8650, 2, 7, 2.8], [8648, 2, 7, 3.08], [1446, 2, 7, 1.82], [7004, 1, 7, 2.28], [2049, 3, 10, 0.87], [10, 2, 7, 3.05], [159, 3, 8, 1.18], [143, 2, 7, 0.81], [593, 2, 9, 0.94], [2775, 2, 7, 0.93], [5491, 2, 7, 1.52], [7036, 1, 7, 3.03], [144, 2, 7, 0.99], [3840, 1, 7, 1.45], [151, 1, 7, 1.31], [8938, 2, 7, 0.99], [94, 4, 7, 2.1], [434, 2, 7, 0.89], [1124, 2, 7, 1.46], [3893, 1, 7, 0.71], [990, 2, 7, 1.45], [1504, 2, 7, 0.69], [146, 2, 7, 1.05], [8853, 2, 7, 3.35], [624, 2, 7, 2.25], [12224, 1, 7, 0.83], [1429, 2, 7, 1.46], [2776, 2, 7, 1.13], [3891, 1, 7, 0.76], [362, 2, 7, 0.95], [141, 2, 7, 0.72], [11681, 2, 11, 4.17], [378, 2, 7, 4.21], [5208, 3, 7, 1.78], [3889, 1, 7, 1.38], [1007, 2, 7, 0.85], [10574, 3, 9, 3.22], [11234, 2, 7, 2.3], [2054, 3, 7, 0.91], [12870, 1, 7, 3.19], [7005, 1, 7, 1.99], [7886, 4, 7, 0.8], [10149, 3, 21, 2.09], [21793, 1, 7, 4.06], [145, 2, 7, 0.93], [11811, 1, 7, 0.8], [7084, 3, 7, 1.05], [20927, 1, 7, 1.39], [2912, 1, 7, 2.33], [8672, 2, 7, 3.61], [5165, 1, 7, 3.0], [9760, 29, 7, 1.24], [998, 2, 7, 1.5], [997, 2, 7, 2.32], [417, 2, 7, 0.84], [2436, 4, 7, 2.18], [1886, 2, 7, 1.04], [1006, 2, 7, 1.01], [346, 3, 7, 0.8], [972, 3, 8, 1.52], [2424, 80, 7, 4.39], [229, 1, 7, 0.89], [3495, 3, 16, 1.61], [6158, 2, 7, 4.79], [8651, 2, 7, 2.33], [5076, 1, 7, 0.87], [9372, 1, 7, 3.18], [11953, 1, 7, 1.0], [7887, 4, 7, 1.42], [5165, 2, 8, 3.08], [20252, 2, 7, 0.88], [126, 2, 7, 2.74], [523, 2, 7, 0.65], [74, 1, 7, 3.84], [142, 2, 7, 0.65], [11770, 1, 7, 1.22], [140, 2, 7, 2.74], [8939, 2, 7, 0.89], [11954, 1, 7, 0.7], [1492, 1, 7, 0.97], [20256, 2, 7, 0.96], [996, 2, 7, 3.13], [11685, 2, 11, 4.22], [2912, 2, 12, 2.22], [2774, 2, 7, 1.01], [12721, 2, 7, 1.92], [3981, 3, 22, 1.3], [9491, 21, 21, 0.95], [5434, 1, 7, 1.52], [2423, 80, 7, 2.7], [11772, 1, 7, 0.84], [5584, 3, 7, 2.24], [10407, 10, 10, 2.08], [6496, 1, 7, 0.79], [10388, 2, 7, 2.08], [11179, 1, 7, 1.42], [2438, 2, 8, 1.87], [361, 2, 7, 0.76], [2805, 137, 7, 2.91], [5209, 3, 7, 1.78], [8898, 3, 7, 1.0], [12526, 2, 7, 0.97], [2424, 29, 7, 4.34], [7573, 1, 22, 2.1], [3900, 3, 7, 2.41], [2104, 3, 15, 0.7], [11812, 1, 7, 0.84], [4253, 1, 7, 1.0], [8676, 2, 7, 3.61], [1519, 3, 17, 0.69], [22247, 2, 7, 2.27], [96, 11, 21, 0.64], [1622, 1, 7, 0.84], [412, 1, 7, 0.81], [12764, 2, 8, 1.28], [972, 1, 7, 1.53], [432, 3, 7, 3.74], [9784, 1, 7, 0.96], [10386, 2, 7, 4.24], [1274, 1, 7, 1.32], [159, 16, 7, 1.02], [1886, 2, 152, 2.67], [1006, 2, 222, 2.65], [346, 3, 617, 2.44], [972, 3, 579, 3.17], [2424, 80, 160, 6], [229, 1, 82, 2.53], [3495, 3, 935, 3.25], [6158, 2, 248, 6], [8651, 2, 218, 3.96], [5076, 1, 127, 2.5], [9372, 1, 221, 4.81], [11953, 1, 194, 2.64], [7887, 4, 68, 2.73], [5165, 2, 369, 4.71], [20252, 2, 91, 2.52], [126, 2, 87, 4.37], [523, 2, 151, 2.29], [74, 1, 193, 5.48], [142, 2, 151, 2.29], [11770, 1, 212, 2.85], [140, 2, 87, 4.37], [8939, 2, 187, 2.53], [11954, 1, 194, 2.34], [1492, 1, 36, 2.61], [20256, 2, 91, 2.59], [996, 2, 227, 4.77], [11685, 2, 260, 5.85], [2912, 2, 379, 3.85], [2774, 2, 199, 2.65], [12721, 2, 274, 3.56], [3981, 3, 1607, 2.93], [9491, 21, 2074, 2.55], [5434, 1, 47, 3.16], [2423, 80, 177, 4.33], [11772, 1, 214, 2.47], [5584, 3, 232, 3.88], [10407, 10, 1164, 3.71], [6496, 1, 40, 2.42], [10388, 2, 210, 3.71], [11179, 1, 85, 3.06], [2438, 2, 607, 3.51], [361, 2, 151, 2.39], [2805, 137, 174, 4.54], [5209, 3, 541, 3.41], [8898, 3, 285, 2.64], [12526, 2, 270, 2.61], [2424, 29, 32, 5.98], [7573, 1, 359, 3.74], [3900, 3, 42, 4.05], [2104, 3, 115, 1.67], [11812, 1, 232, 2.48], [4253, 1, 166, 2.63], [8676, 2, 275, 5.25], [1519, 3, 1630, 2.34], [22247, 2, 274, 3.9], [96, 11, 555, 2.1], [1622, 1, 105, 2.47], [412, 1, 82, 2.45], [12764, 2, 718, 2.92], [972, 1, 97, 3.16], [432, 3, 291, 5.38], [9784, 1, 71, 2.6], [10386, 2, 210, 5.87], [1274, 1, 80, 2.95], [159, 16, 77, 2.66]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 11, 3.36], [141, 2, 7, 1.09], [589, 2, 8, 0.75], [2778, 2, 7, 1.83], [6936, 2, 13, 3.9], [8648, 2, 7, 4.05], [362, 2, 7, 1.03], [11681, 2, 22, 3.67], [8650, 2, 7, 3.82], [326, 2, 7, 1.32], [205, 2, 7, 0.85], [2328, 2, 7, 1.6], [1446, 2, 7, 0.92], [130, 1, 7, 2.31], [305, 2, 7, 1.84], [8649, 2, 7, 4.51], [2775, 2, 7, 1.83], [8853, 2, 11, 4.03], [361, 2, 7, 1.11], [2776, 2, 7, 2.25], [593, 2, 7, 0.96], [143, 2, 7, 1.27], [140, 2, 7, 0.86], [1429, 2, 7, 1.08], [206, 2, 7, 1.04], [523, 2, 7, 0.99], [5493, 2, 7, 0.98], [7036, 1, 7, 2.71], [413, 1, 7, 1.37], [7004, 1, 7, 0.72], [5491, 2, 7, 0.92], [412, 1, 7, 1.25], [21793, 1, 7, 2.44], [12350, 1, 7, 0.98], [1124, 2, 7, 1.46], [151, 1, 7, 0.68], [990, 2, 7, 1.44], [12353, 1, 7, 1.02], [5165, 1, 7, 2.37], [8915, 2, 8, 2.74], [615, 2, 7, 0.9], [417, 2, 7, 1.01], [583, 2, 7, 1.32], [248, 1, 7, 0.85], [201, 3, 7, 3.06], [142, 2, 7, 1.02], [6097, 80, 7, 3.46], [6952, 1, 7, 3.04], [434, 2, 7, 1.23], [11770, 1, 7, 0.97], [9372, 1, 7, 3.84], [345, 3, 7, 1.68], [11234, 2, 7, 1.26], [616, 2, 7, 0.67], [3670, 2, 7, 2.71], [7005, 1, 7, 0.86], [3893, 1, 7, 0.84], [5165, 2, 12, 2.36], [12346, 1, 7, 0.98], [998, 2, 7, 2.26], [2912, 1, 7, 3.77], [7084, 3, 7, 4.0], [12870, 1, 7, 2.21], [10574, 3, 8, 1.89], [12343, 1, 7, 0.89], [2424, 80, 7, 3.78], [1886, 2, 7, 1.02], [346, 3, 7, 0.8], [3334, 5, 7, 2.14], [20927, 1, 7, 0.65], [12351, 1, 7, 0.7], [6097, 29, 7, 3.51], [6098, 80, 7, 1.63], [12345, 1, 7, 0.85], [22316, 3, 7, 0.85], [147, 1, 7, 3.25], [11772, 1, 7, 0.91], [10149, 3, 24, 2.14], [20256, 2, 7, 0.68], [432, 3, 7, 1.15], [11491, 2, 7, 0.89], [2912, 2, 8, 3.77], [1492, 1, 7, 0.7], [11952, 1, 7, 0.87], [20252, 2, 7, 1.18], [1519, 3, 16, 0.69], [418, 2, 7, 1.44], [2423, 80, 7, 3.61], [4032, 29, 7, 0.96], [411, 2, 7, 1.0], [5151, 2, 7, 1.0], [229, 1, 7, 3.82], [972, 3, 7, 1.88], [12304, 1, 7, 1.77], [3576, 25, 7, 1.04], [346, 1, 7, 0.79], [2331, 1, 7, 1.92], [13034, 3, 7, 3.52], [416, 1, 7, 0.91], [13244, 1, 7, 0.66], [3, 2, 7, 1.08], [2424, 29, 7, 3.78], [11426, 25, 7, 1.08], [11737, 2, 7, 0.8], [5076, 1, 7, 1.21], [2805, 137, 7, 2.14], [439, 1, 7, 3.23], [11490, 1, 7, 1.1], [11583, 29, 7, 0.84], [414, 1, 7, 1.48], [1413, 15, 7, 1.02], [6494, 1, 7, 0.77], [950, 1, 7, 0.66], [410, 1, 7, 0.8], [3575, 25, 7, 1.04], [12764, 2, 8, 1.18], [13280, 1, 7, 3.47], [75, 2, 7, 0.73], [3478, 2, 7, 1.16], [1701, 2, 7, 3.5], [11180, 1, 7, 1.14], [11813, 1, 7, 3.67], [4253, 1, 7, 1.64], [8677, 3, 8, 2.03], [13023, 3, 8, 2.24], [11586, 1, 14, 1.84], [9784, 1, 7, 1.61], [9998, 80, 7, 2.18], [1309, 1, 7, 2.52], [12526, 2, 7, 3.55], [2438, 2, 8, 2.09], [4033, 29, 7, 0.85], [6098, 29, 7, 1.63], [346, 3, 547, 2.22], [3334, 5, 154, 3.56], [20927, 1, 69, 2.07], [12351, 1, 535, 2.13], [6097, 29, 29, 4.93], [6098, 80, 64, 3.05], [12345, 1, 535, 2.28], [22316, 3, 272, 2.27], [147, 1, 76, 4.67], [11772, 1, 189, 2.33], [10149, 3, 756, 3.55], [20256, 2, 80, 2.09], [432, 3, 262, 2.56], [11491, 2, 121, 2.31], [2912, 2, 324, 5.19], [1492, 1, 32, 2.12], [11952, 1, 172, 2.28], [20252, 2, 79, 2.59], [1519, 3, 1437, 2.11], [418, 2, 121, 2.86], [2423, 80, 154, 5.03], [4032, 29, 82, 2.38], [411, 2, 93, 2.41], [5151, 2, 21, 2.42], [229, 1, 69, 5.24], [972, 3, 508, 3.29], [12304, 1, 94, 3.19], [3576, 25, 87, 2.46], [346, 1, 137, 2.21], [2331, 1, 100, 3.34], [13034, 3, 505, 4.94], [416, 1, 74, 2.33], [13244, 1, 42, 2.08], [3, 2, 104, 2.5], [2424, 29, 28, 5.2], [11426, 25, 102, 2.5], [11737, 2, 49, 2.22], [5076, 1, 110, 2.63], [2805, 137, 154, 3.56], [439, 1, 74, 4.65], [11490, 1, 93, 2.52], [11583, 29, 48, 2.26], [414, 1, 74, 2.9], [1413, 15, 85, 2.44], [6494, 1, 45, 2.19], [950, 1, 41, 1.99], [410, 1, 90, 2.22], [3575, 25, 87, 2.46], [12764, 2, 633, 2.59], [13280, 1, 271, 4.89], [75, 2, 124, 2.15], [3478, 2, 65, 2.58], [1701, 2, 139, 4.92], [11180, 1, 75, 2.55], [11813, 1, 264, 5.09], [4253, 1, 144, 3.05], [8677, 3, 253, 3.45], [13023, 3, 508, 3.66], [11586, 1, 309, 3.26], [9784, 1, 61, 3.03], [9998, 80, 104, 3.6], [1309, 1, 47, 3.94], [12526, 2, 141, 4.73], [2438, 2, 535, 3.51], [4033, 29, 88, 2.27], [6098, 29, 32, 3.05]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 10, 2.81], [2778, 2, 7, 1.07], [615, 2, 7, 1.6], [305, 2, 7, 0.94], [130, 1, 7, 1.94], [6936, 2, 9, 3.19], [616, 2, 7, 1.13], [205, 2, 7, 0.93], [1504, 2, 7, 0.9], [8648, 2, 7, 2.71], [144, 2, 7, 0.86], [2049, 3, 14, 0.87], [88, 10, 15, 0.85], [7036, 1, 7, 2.27], [326, 2, 7, 1.94], [8650, 2, 7, 2.48], [589, 2, 8, 0.61], [593, 2, 9, 1.22], [2327, 2, 7, 0.98], [3893, 1, 7, 1.17], [11681, 2, 9, 3.34], [8853, 2, 7, 2.37], [2775, 2, 7, 1.07], [141, 2, 7, 1.58], [206, 2, 7, 0.82], [151, 1, 7, 1.19], [7004, 1, 7, 2.22], [9507, 3, 7, 0.66], [11685, 2, 7, 3.35], [3840, 1, 7, 0.72], [3891, 1, 7, 1.37], [10, 2, 7, 0.82], [2328, 2, 7, 0.95], [159, 3, 8, 1.3], [146, 2, 7, 1.04], [2050, 3, 7, 3.31], [2497, 2, 7, 1.11], [5491, 2, 7, 1.08], [2055, 3, 7, 3.41], [434, 2, 7, 0.76], [143, 2, 7, 0.94], [3980, 4, 7, 2.36], [624, 2, 7, 1.48], [2054, 3, 7, 3.66], [990, 2, 7, 0.66], [12349, 1, 7, 5], [8649, 2, 7, 2.46], [8672, 2, 7, 2.68], [362, 2, 7, 0.91], [12870, 1, 7, 3.71], [2776, 2, 7, 1.86], [2057, 3, 7, 3.52], [8938, 2, 7, 1.32], [12350, 1, 7, 2.52], [12353, 1, 7, 5], [10574, 3, 8, 2.36], [7886, 4, 7, 0.73], [5165, 1, 7, 2.89], [10993, 2, 7, 0.75], [145, 2, 7, 0.88], [1006, 2, 7, 1.57], [1446, 2, 7, 2.04], [523, 2, 7, 1.05], [94, 4, 7, 4.08], [7084, 3, 7, 1.44], [2991, 3, 7, 4.3], [3975, 4, 7, 2.49], [12346, 1, 7, 2.77], [21793, 1, 7, 2.08], [142, 2, 7, 0.95], [11404, 2, 7, 0.72], [9760, 29, 7, 0.86], [20927, 1, 7, 1.77], [6158, 2, 7, 1.25], [5165, 2, 8, 2.91], [3981, 3, 21, 2.03], [417, 2, 7, 1.01], [2912, 1, 7, 2.32], [8939, 2, 7, 0.87], [1007, 2, 7, 1.28], [3982, 3, 17, 2.34], [2774, 2, 7, 1.52], [997, 2, 7, 4.76], [33, 1, 7, 2.44], [11772, 1, 7, 2.0], [956, 2, 7, 0.82], [286, 3, 7, 4.38], [7887, 4, 7, 1.75], [12344, 1, 7, 2.85], [6497, 1, 7, 2.41], [1492, 1, 7, 1.76], [12352, 1, 7, 2.56], [12345, 1, 7, 2.5], [8120, 3, 7, 1.2], [950, 1, 7, 0.67], [998, 2, 7, 4.76], [972, 3, 7, 2.77], [11767, 1, 7, 1.0], [12351, 1, 7, 3.59], [996, 2, 7, 3.58], [11769, 1, 7, 1.77], [11770, 1, 7, 0.85], [11490, 1, 7, 0.97], [2912, 2, 8, 2.19], [432, 3, 7, 0.86], [74, 1, 7, 1.8], [6496, 1, 7, 1.37], [410, 1, 7, 3.08], [411, 2, 7, 1.19], [389, 4, 7, 1.63], [35, 1, 7, 2.44], [7567, 3, 7, 2.9], [4253, 1, 7, 1.5], [140, 2, 7, 1.28], [22317, 3, 7, 0.92], [8673, 2, 7, 2.48], [2336, 3, 8, 0.68], [4176, 4, 7, 2.57], [8121, 3, 7, 0.86], [9372, 1, 7, 2.02], [2436, 4, 7, 1.72], [21269, 3, 7, 4.58], [10388, 2, 7, 2.26], [10936, 2, 7, 3.12], [8676, 2, 7, 1.52], [22247, 2, 7, 2.27], [12343, 1, 7, 5], [11085, 2, 8, 2.67], [8677, 3, 7, 1.66], [12269, 2, 7, 1.9], [9784, 1, 7, 0.96], [12526, 2, 7, 2.15], [12225, 1, 7, 2.2], [12346, 1, 519, 4.23], [21793, 1, 191, 3.53], [142, 2, 133, 2.39], [11404, 2, 91, 2.17], [9760, 29, 62, 2.31], [20927, 1, 68, 3.22], [6158, 2, 228, 2.69], [5165, 2, 328, 4.35], [3981, 3, 1386, 3.45], [417, 2, 133, 2.45], [2912, 1, 42, 3.77], [8939, 2, 166, 2.32], [1007, 2, 230, 2.73], [3982, 3, 679, 3.79], [2774, 2, 175, 2.96], [997, 2, 201, 6], [33, 1, 96, 3.89], [11772, 1, 188, 3.44], [956, 2, 92, 2.26], [286, 3, 120, 5.82], [12344, 1, 519, 4.31], [6497, 1, 32, 3.86], [1492, 1, 32, 3.21], [12352, 1, 519, 4.02], [12345, 1, 519, 3.96], [8120, 3, 206, 2.65], [950, 1, 41, 2.03], [998, 2, 201, 6], [972, 3, 508, 4.22], [11767, 1, 139, 2.45], [12351, 1, 519, 5.05], [996, 2, 194, 5.03], [11769, 1, 139, 3.22], [11770, 1, 188, 2.29], [11490, 1, 94, 2.42], [2912, 2, 334, 3.64], [432, 3, 263, 2.31], [74, 1, 174, 3.25], [6496, 1, 35, 2.82], [410, 1, 89, 4.53], [411, 2, 94, 2.64], [389, 4, 179, 3.07], [35, 1, 96, 3.89], [7567, 3, 60, 4.35], [4253, 1, 144, 2.95], [140, 2, 78, 2.73], [22317, 3, 272, 2.38], [8673, 2, 240, 3.93], [2336, 3, 503, 2.13], [4176, 4, 415, 4.02], [8121, 3, 253, 2.31], [9372, 1, 195, 3.47], [2436, 4, 99, 3.17], [21269, 3, 253, 6], [10388, 2, 185, 3.71], [10936, 2, 115, 4.57], [8676, 2, 246, 2.97], [22247, 2, 243, 3.72], [12343, 1, 519, 6], [11085, 2, 460, 4.13], [8677, 3, 254, 3.11], [12269, 2, 54, 3.35], [9784, 1, 63, 2.41], [12526, 2, 234, 3.59], [12225, 1, 141, 3.65]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 19, 4.18], [305, 2, 7, 0.88], [130, 1, 7, 1.86], [2328, 2, 7, 1.85], [141, 2, 7, 0.88], [2778, 2, 11, 1.18], [8650, 2, 9, 2.32], [5491, 2, 7, 1.18], [2327, 2, 7, 1.82], [8672, 2, 10, 2.44], [6936, 2, 9, 2.96], [362, 2, 7, 1.99], [143, 2, 7, 0.93], [11681, 2, 13, 3.92], [145, 2, 7, 0.93], [205, 2, 7, 0.74], [5493, 2, 7, 1.56], [146, 2, 7, 1.04], [589, 2, 7, 0.73], [75, 2, 7, 1.79], [11838, 2, 7, 1.02], [523, 2, 7, 1.22], [8648, 2, 7, 2.53], [2049, 3, 14, 1.18], [1124, 2, 10, 1.74], [1005, 2, 7, 0.72], [8853, 2, 7, 2.88], [12721, 2, 11, 1.45], [615, 2, 7, 2.13], [206, 2, 7, 0.74], [326, 2, 7, 2.08], [8915, 2, 7, 3.38], [8673, 2, 7, 2.7], [144, 2, 7, 0.84], [8675, 2, 9, 1.84], [990, 2, 7, 1.65], [434, 2, 7, 1.29], [11739, 2, 7, 3.48], [88, 10, 14, 2.51], [2776, 2, 7, 2.35], [142, 2, 7, 1.05], [435, 2, 7, 0.98], [151, 1, 7, 1.31], [8676, 2, 7, 1.29], [6158, 2, 8, 2.0], [2424, 29, 7, 3.84], [8649, 2, 7, 2.53], [2423, 29, 7, 4.15], [11738, 2, 7, 3.27], [2497, 2, 7, 0.66], [2424, 80, 7, 3.81], [7704, 2, 7, 2.28], [1413, 15, 7, 0.99], [3670, 2, 9, 4.54], [10574, 3, 9, 2.49], [2423, 80, 7, 4.15], [3, 2, 7, 1.94], [7705, 2, 7, 2.28], [2859, 15, 7, 1.59], [11836, 2, 7, 0.86], [378, 2, 7, 3.17], [12720, 2, 7, 1.45], [412, 1, 7, 1.99], [7706, 2, 7, 2.28], [22316, 3, 7, 0.85], [2055, 3, 7, 0.84], [10149, 3, 21, 2.35], [74, 1, 7, 3.84], [3478, 2, 7, 2.36], [1414, 15, 7, 0.91], [2774, 2, 7, 2.72], [6497, 1, 7, 0.85], [307, 2, 7, 1.61], [60, 3, 8, 2.04], [12526, 2, 7, 3.89], [411, 2, 7, 0.74], [11089, 1, 7, 0.75], [418, 2, 7, 1.08], [346, 3, 8, 0.74], [7004, 1, 7, 1.03], [1409, 15, 7, 0.86], [413, 1, 7, 3.3], [7036, 1, 7, 1.74], [13034, 3, 9, 2.15], [14037, 3, 7, 0.85], [3893, 1, 7, 3.83], [20252, 2, 7, 0.68], [159, 3, 9, 1.37], [11844, 2, 7, 0.78], [8274, 3, 7, 1.06], [439, 1, 7, 0.97], [7084, 3, 7, 0.67], [13260, 29, 7, 1.22], [6097, 80, 7, 5], [6952, 1, 7, 2.01], [18964, 1, 7, 0.66], [9784, 1, 7, 2.62], [1050, 2, 7, 0.66], [7707, 2, 7, 1.32], [94, 4, 7, 4.31], [1490, 1, 7, 1.68], [11490, 1, 7, 1.02], [22317, 3, 8, 0.85], [1492, 1, 7, 1.2], [1413, 16, 7, 0.99], [3889, 1, 7, 3.83], [7708, 2, 7, 2.28], [1243, 2, 7, 0.84], [3495, 3, 17, 1.77], [565, 2, 7, 0.84], [414, 1, 7, 3.3], [7703, 2, 7, 2.28], [11491, 2, 7, 1.35], [21793, 1, 7, 3.5], [410, 1, 7, 0.88], [22558, 3, 7, 1.74], [2422, 80, 7, 2.12], [6098, 80, 7, 4.06], [149, 2, 7, 2.73], [2805, 137, 9, 2.93], [6630, 3, 7, 3.72], [11504, 2, 7, 1.13], [3674, 2, 7, 2.83], [147, 1, 7, 2.73], [247, 1, 7, 0.84], [2331, 1, 7, 1.65], [3430, 15, 7, 1.99], [13023, 3, 10, 1.0], [345, 3, 7, 1.39], [416, 1, 7, 2.93], [6098, 29, 7, 4.06], [23275, 2, 7, 0.71], [11671, 1, 7, 2.17], [74, 1, 199, 5.63], [3478, 2, 75, 4.14], [1414, 15, 99, 2.69], [2774, 2, 204, 4.5], [6497, 1, 38, 2.63], [307, 2, 148, 3.39], [60, 3, 808, 3.83], [12526, 2, 271, 5.68], [411, 2, 109, 2.53], [11089, 1, 173, 2.53], [418, 2, 141, 2.87], [346, 3, 633, 2.51], [7004, 1, 79, 2.82], [1409, 15, 58, 2.64], [413, 1, 85, 5.08], [7036, 1, 127, 3.52], [13034, 3, 589, 3.94], [14037, 3, 115, 1.92], [3893, 1, 122, 5.61], [20252, 2, 92, 2.46], [159, 3, 706, 3.16], [11844, 2, 276, 2.57], [439, 1, 87, 2.75], [13260, 29, 72, 3.01], [6097, 80, 66, 6], [6952, 1, 188, 3.79], [18964, 1, 34, 2.09], [9784, 1, 71, 4.41], [7707, 2, 175, 3.1], [94, 4, 115, 6], [1490, 1, 50, 3.46], [11490, 1, 109, 2.8], [22317, 3, 315, 2.63], [1492, 1, 37, 2.99], [1413, 16, 50, 2.77], [3889, 1, 122, 5.61], [7708, 2, 175, 4.06], [1243, 2, 99, 2.62], [3495, 3, 960, 3.54], [565, 2, 175, 2.63], [414, 1, 85, 5.08], [7703, 2, 175, 4.06], [11491, 2, 141, 3.13], [21793, 1, 241, 5.28], [410, 1, 53, 2.3], [22558, 3, 162, 2.8], [2422, 80, 180, 3.9], [6098, 80, 73, 5.84], [149, 2, 87, 4.51], [2805, 137, 182, 4.71], [6630, 3, 93, 5.5], [11504, 2, 141, 2.92], [3674, 2, 255, 4.62], [147, 1, 87, 4.51], [247, 1, 89, 2.63], [2331, 1, 117, 3.43], [3430, 15, 69, 3.77], [13023, 3, 598, 2.78], [345, 3, 295, 3.17], [416, 1, 85, 4.71], [6098, 29, 37, 5.84], [23275, 2, 36, 2.14], [11671, 1, 300, 3.96]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 10, 2.68], [305, 2, 7, 1.49], [326, 2, 9, 1.63], [3, 2, 7, 0.86], [205, 2, 7, 0.68], [6935, 2, 18, 3.0], [130, 1, 7, 1.96], [143, 2, 7, 1.05], [75, 2, 7, 1.6], [144, 2, 7, 0.9], [12721, 2, 10, 1.69], [593, 2, 10, 0.74], [145, 2, 7, 0.96], [8915, 2, 10, 0.86], [2778, 2, 7, 1.07], [1776, 1, 7, 1.14], [146, 2, 7, 0.96], [206, 2, 7, 0.68], [6936, 2, 10, 2.47], [8648, 2, 7, 3.54], [151, 1, 7, 0.67], [2328, 2, 7, 1.55], [8650, 2, 7, 3.82], [5151, 2, 7, 1.87], [248, 1, 7, 0.68], [2050, 3, 7, 2.04], [88, 10, 17, 3.35], [7886, 4, 7, 0.84], [74, 1, 7, 3.53], [1446, 2, 7, 1.43], [362, 2, 7, 0.89], [7004, 1, 7, 0.68], [2057, 3, 7, 0.87], [2991, 3, 7, 4.18], [1007, 2, 10, 0.81], [2055, 3, 7, 0.78], [147, 1, 7, 2.5], [8649, 2, 7, 3.91], [3889, 1, 7, 0.8], [11234, 2, 9, 1.26], [10, 2, 7, 3.83], [7005, 1, 7, 0.69], [1429, 2, 7, 1.07], [345, 3, 7, 1.04], [307, 2, 7, 1.06], [12870, 1, 7, 4.27], [5081, 2, 7, 1.26], [10825, 21, 13, 2.21], [7036, 1, 7, 1.74], [57, 1, 7, 0.78], [1504, 2, 7, 1.0], [3478, 2, 7, 2.13], [1006, 2, 7, 1.09], [10149, 3, 21, 1.68], [7084, 3, 7, 2.81], [3891, 1, 7, 2.13], [21793, 1, 7, 4.57], [167, 3, 7, 2.27], [94, 4, 7, 2.1], [411, 2, 7, 0.68], [308, 1, 7, 4.48], [9827, 3, 7, 0.88], [3893, 1, 7, 2.13], [79, 1, 7, 0.66], [432, 3, 7, 1.15], [23, 1, 7, 1.24], [8677, 3, 9, 1.26], [11681, 2, 11, 4.55], [33, 1, 7, 2.45], [12225, 1, 7, 1.7], [96, 11, 24, 1.07], [1490, 1, 7, 0.67], [148, 1, 7, 4.65], [11737, 2, 7, 1.03], [1124, 2, 9, 1.43], [6158, 2, 8, 0.86], [1243, 2, 7, 1.03], [8853, 2, 11, 3.05], [9760, 29, 7, 1.35], [412, 1, 7, 2.06], [5812, 3, 8, 1.39], [10574, 3, 9, 2.6], [2336, 3, 9, 1.88], [22247, 2, 11, 2.21], [20256, 2, 7, 0.96], [20927, 1, 7, 0.89], [8651, 2, 7, 1.99], [229, 1, 7, 3.82], [35, 1, 7, 2.45], [5208, 3, 11, 1.25], [201, 3, 7, 1.04], [45, 2, 7, 1.2], [1767, 25, 7, 1.09], [25, 1, 7, 1.4], [8676, 2, 10, 2.68], [159, 3, 9, 2.21], [9069, 1, 7, 1.92], [11490, 1, 7, 0.8], [413, 1, 7, 1.1], [3495, 3, 21, 2.26], [998, 2, 7, 3.72], [95, 3, 17, 0.96], [140, 2, 7, 1.17], [950, 1, 7, 0.96], [149, 2, 7, 2.62], [5946, 1, 7, 1.38], [3980, 4, 7, 2.46], [9372, 1, 7, 2.23], [1126, 2, 7, 0.92], [1766, 25, 7, 1.02], [2775, 2, 7, 1.07], [11489, 1, 7, 1.49], [490, 1, 7, 0.98], [1413, 15, 7, 0.91], [3670, 2, 7, 3.66], [20255, 2, 7, 0.96], [1070, 7, 15, 0.81], [8898, 3, 7, 2.78], [107, 2, 7, 2.15], [974, 3, 7, 1.64], [9691, 1, 7, 1.42], [20498, 1, 7, 1.8], [11954, 1, 7, 0.87], [8674, 2, 7, 1.7], [14037, 3, 7, 0.8], [823, 1, 7, 0.92], [1519, 3, 24, 1.03], [12353, 1, 7, 5], [11739, 2, 7, 1.08], [9784, 1, 7, 1.11], [14017, 3, 7, 1.91], [972, 3, 8, 1.13], [5209, 3, 7, 0.98], [11681, 2, 226, 5.85], [33, 1, 95, 3.75], [12225, 1, 71, 2.57], [96, 11, 722, 2.38], [1490, 1, 43, 1.98], [148, 1, 75, 5.96], [11737, 2, 49, 2.34], [1124, 2, 158, 2.74], [6158, 2, 222, 2.16], [1243, 2, 83, 2.33], [8853, 2, 242, 4.36], [9760, 29, 61, 2.66], [412, 1, 71, 3.36], [5812, 3, 501, 2.69], [10574, 3, 424, 3.91], [2336, 3, 493, 3.19], [22247, 2, 240, 3.52], [20256, 2, 80, 2.27], [20927, 1, 68, 2.2], [8651, 2, 189, 3.3], [229, 1, 69, 5.13], [35, 1, 71, 3.61], [5208, 3, 479, 2.56], [201, 3, 257, 2.35], [45, 2, 92, 2.5], [1767, 25, 146, 2.4], [25, 1, 95, 2.71], [8676, 2, 242, 3.98], [159, 3, 593, 3.52], [9069, 1, 104, 3.22], [11490, 1, 93, 2.11], [413, 1, 73, 2.41], [3495, 3, 817, 3.57], [998, 2, 202, 5.02], [95, 3, 958, 2.27], [140, 2, 77, 2.47], [950, 1, 51, 2.27], [149, 2, 75, 3.93], [5946, 1, 105, 2.68], [3980, 4, 408, 3.77], [9372, 1, 192, 3.54], [1126, 2, 194, 2.23], [1766, 25, 159, 2.33], [2775, 2, 133, 2.37], [11489, 1, 93, 2.8], [490, 1, 50, 2.29], [1413, 15, 85, 2.22], [3670, 2, 200, 4.97], [20255, 2, 80, 2.27], [1070, 7, 503, 2.12], [8898, 3, 250, 4.08], [107, 2, 41, 3.46], [974, 3, 126, 2.95], [9691, 1, 64, 2.72], [20498, 1, 83, 3.11], [11954, 1, 171, 2.18], [8674, 2, 242, 3.01], [14037, 3, 147, 1.68], [823, 1, 34, 2.23], [1519, 3, 1423, 2.34], [12353, 1, 514, 6], [11739, 2, 49, 2.39], [9784, 1, 61, 2.42], [14017, 3, 166, 3.21], [972, 3, 503, 2.44], [5209, 3, 479, 2.29]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 10, 2.91], [305, 2, 7, 1.49], [6935, 2, 19, 3.17], [326, 2, 8, 0.98], [141, 2, 7, 0.72], [144, 2, 7, 1.0], [151, 1, 7, 0.84], [362, 2, 7, 0.99], [12721, 2, 10, 1.92], [593, 2, 11, 0.81], [146, 2, 7, 1.07], [145, 2, 7, 0.8], [2328, 2, 7, 1.01], [206, 2, 7, 0.71], [8648, 2, 7, 2.52], [8915, 2, 9, 0.7], [143, 2, 7, 1.06], [6936, 2, 10, 2.47], [990, 2, 7, 1.16], [20252, 2, 7, 0.91], [8650, 2, 7, 3.16], [5151, 2, 7, 1.0], [1007, 2, 10, 0.81], [2778, 2, 7, 1.06], [248, 1, 7, 0.71], [88, 10, 14, 2.25], [2050, 3, 7, 1.39], [76, 2, 7, 2.29], [8649, 2, 7, 2.86], [22247, 2, 9, 2.97], [10149, 3, 25, 3.26], [10, 2, 9, 3.05], [2054, 3, 7, 2.83], [8677, 3, 8, 3.08], [412, 1, 7, 1.67], [2055, 3, 7, 2.83], [361, 2, 7, 2.22], [13028, 3, 7, 0.92], [7004, 1, 7, 0.73], [413, 1, 7, 0.73], [411, 2, 7, 0.88], [10825, 21, 14, 0.68], [8938, 2, 8, 0.62], [11681, 2, 10, 4.88], [1446, 2, 7, 1.56], [307, 2, 7, 1.07], [7084, 3, 7, 2.22], [3478, 2, 7, 2.36], [1429, 2, 7, 0.98], [3495, 3, 21, 2.26], [1006, 2, 7, 1.09], [74, 1, 7, 2.52], [5081, 2, 7, 1.0], [140, 2, 7, 0.86], [308, 1, 7, 4.48], [1492, 1, 7, 0.7], [7036, 1, 7, 2.48], [7005, 1, 7, 0.73], [167, 3, 7, 2.49], [45, 2, 7, 3.67], [10574, 3, 9, 0.71], [9827, 3, 7, 0.88], [1124, 2, 9, 1.74], [12870, 1, 7, 4.27], [8676, 2, 7, 2.54], [168, 3, 7, 1.46], [94, 4, 7, 2.54], [1504, 2, 7, 0.83], [11234, 2, 7, 1.26], [415, 1, 7, 1.84], [8651, 2, 7, 2.24], [148, 1, 7, 2.34], [8853, 2, 11, 3.05], [432, 3, 7, 1.15], [6097, 29, 7, 3.43], [416, 1, 7, 2.11], [23, 1, 7, 1.24], [6097, 80, 7, 3.42], [20256, 2, 7, 0.64], [490, 1, 7, 0.93], [95, 3, 21, 0.92], [5208, 3, 13, 1.06], [3980, 4, 7, 2.46], [6098, 29, 7, 3.72], [14017, 3, 7, 1.23], [6098, 80, 7, 3.72], [414, 1, 7, 0.73], [1070, 7, 13, 0.73], [9069, 1, 7, 2.01], [8898, 3, 7, 3.98], [1126, 2, 7, 0.92], [126, 2, 7, 0.86], [22554, 10, 15, 0.84], [13034, 3, 8, 2.48], [9829, 3, 7, 0.76], [20255, 2, 7, 0.72], [20498, 1, 7, 1.94], [159, 3, 8, 1.08], [5086, 1, 7, 2.14], [5513, 2, 7, 0.88], [9784, 1, 7, 1.37], [12924, 1, 7, 1.04], [7567, 3, 7, 3.39], [22317, 3, 8, 0.85], [229, 1, 7, 3.82], [13260, 29, 7, 0.78], [1413, 15, 7, 0.83], [5811, 3, 7, 2.16], [11085, 2, 7, 0.83], [8557, 3, 7, 1.53], [5813, 3, 7, 1.98], [9082, 3, 24, 1.19], [14018, 3, 7, 0.91], [3049, 3, 7, 3.61], [9372, 1, 7, 2.03], [20498, 3, 8, 1.9], [9691, 1, 7, 2.81], [4076, 3, 7, 4.16], [506, 1, 7, 2.34], [524, 1, 7, 1.67], [470, 1, 7, 0.98], [8943, 3, 7, 3.68], [2423, 80, 7, 3.6], [11454, 2, 9, 2.89], [20486, 3, 8, 2.87], [2775, 2, 7, 1.06], [13023, 3, 8, 2.44], [1622, 1, 10, 0.74], [5584, 3, 7, 0.92], [2424, 80, 7, 4.51], [11768, 1, 7, 0.86], [3900, 3, 7, 2.17], [20486, 1, 7, 2.87], [1504, 2, 189, 1.98], [11234, 2, 170, 2.41], [415, 1, 79, 2.99], [8651, 2, 207, 3.39], [148, 1, 80, 3.49], [8853, 2, 262, 4.2], [432, 3, 281, 2.3], [6097, 29, 31, 4.58], [416, 1, 79, 3.26], [23, 1, 103, 2.4], [6097, 80, 62, 4.58], [20256, 2, 86, 1.79], [490, 1, 55, 2.08], [95, 3, 1039, 2.08], [5208, 3, 392, 2.09], [3980, 4, 443, 3.61], [6098, 29, 34, 4.87], [14017, 3, 181, 2.39], [6098, 80, 68, 4.87], [414, 1, 79, 1.89], [1070, 7, 549, 1.89], [9069, 1, 112, 3.16], [8898, 3, 260, 5.13], [1126, 2, 211, 2.07], [126, 2, 84, 2.01], [22554, 10, 347, 1.99], [13034, 3, 540, 3.64], [9829, 3, 64, 1.91], [20255, 2, 86, 1.87], [20498, 1, 90, 3.09], [159, 3, 651, 2.24], [5086, 1, 169, 3.29], [5513, 2, 69, 2.04], [9784, 1, 66, 2.52], [12924, 1, 49, 2.19], [7567, 3, 64, 4.54], [22317, 3, 291, 2.0], [229, 1, 75, 4.97], [13260, 29, 67, 1.93], [1413, 15, 92, 1.98], [5811, 3, 540, 3.32], [11085, 2, 507, 1.97], [8557, 3, 186, 2.68], [5813, 3, 540, 3.14], [9082, 3, 2299, 2.38], [14018, 3, 181, 2.07], [3049, 3, 126, 4.77], [9372, 1, 209, 3.19], [20498, 3, 540, 3.06], [9691, 1, 69, 3.96], [4076, 3, 182, 5.31], [506, 1, 80, 3.49], [524, 1, 77, 2.82], [470, 1, 31, 2.13], [8943, 3, 361, 4.83], [2423, 80, 165, 4.75], [11454, 2, 308, 4.05], [20486, 3, 546, 4.02], [2775, 2, 144, 2.21], [13023, 3, 540, 3.6], [1622, 1, 50, 1.51], [5584, 3, 231, 2.08], [2424, 80, 152, 5.66], [11768, 1, 151, 2.01], [3900, 3, 40, 3.32], [20486, 1, 91, 4.02]]</t>
-  </si>
-  <si>
-    <t>[[11685, 2, 7, 3.35], [6935, 2, 10, 2.81], [326, 2, 7, 1.94], [130, 1, 7, 1.94], [8648, 2, 7, 2.71], [144, 2, 7, 0.86], [593, 2, 9, 1.22], [2327, 2, 7, 0.98], [589, 2, 8, 0.61], [143, 2, 7, 0.94], [205, 2, 7, 0.93], [2328, 2, 7, 0.95], [6936, 2, 9, 3.19], [11681, 2, 9, 3.34], [8650, 2, 7, 2.48], [5493, 2, 7, 1.5], [305, 2, 7, 0.94], [2778, 2, 7, 1.07], [206, 2, 7, 0.82], [141, 2, 7, 1.58], [146, 2, 7, 1.04], [2049, 3, 14, 0.87], [88, 10, 15, 0.85], [7004, 1, 7, 2.22], [615, 2, 7, 1.6], [145, 2, 7, 0.88], [7036, 1, 7, 2.27], [9507, 3, 7, 0.66], [8853, 2, 7, 2.37], [8649, 2, 7, 2.46], [1446, 2, 7, 2.04], [5491, 2, 7, 1.08], [362, 2, 7, 0.91], [434, 2, 7, 0.76], [1006, 2, 7, 1.57], [11737, 2, 7, 1.26], [2055, 3, 7, 3.41], [8938, 2, 7, 1.32], [990, 2, 7, 0.66], [12350, 1, 7, 2.52], [616, 2, 7, 1.13], [2050, 3, 7, 3.31], [417, 2, 7, 1.01], [3840, 1, 7, 0.72], [1007, 2, 7, 1.28], [523, 2, 7, 1.05], [159, 3, 8, 1.3], [12870, 1, 7, 3.71], [13028, 3, 7, 1.12], [12353, 1, 7, 5], [1504, 2, 7, 0.9], [2057, 3, 7, 3.52], [20927, 1, 7, 1.77], [10574, 3, 8, 2.36], [3, 2, 7, 0.69], [12349, 1, 7, 5], [7005, 1, 7, 1.73], [142, 2, 7, 0.95], [12346, 1, 7, 2.77], [7084, 3, 7, 1.44], [624, 2, 7, 1.48], [2991, 3, 7, 4.3], [10, 2, 7, 0.82], [9760, 29, 7, 0.86], [140, 2, 7, 1.28], [2054, 3, 7, 3.66], [21798, 1, 7, 1.3], [2775, 2, 7, 1.07], [8939, 2, 7, 0.87], [3982, 3, 17, 2.34], [21793, 1, 7, 2.08], [1429, 2, 7, 0.91], [96, 11, 22, 1.1], [6158, 2, 7, 1.25], [12269, 2, 7, 1.9], [9372, 1, 7, 2.02], [5165, 2, 8, 2.91], [12352, 1, 7, 2.56], [84, 2, 7, 1.65], [1126, 2, 7, 1.45], [10388, 2, 7, 2.26], [972, 3, 7, 2.77], [411, 2, 7, 1.19], [98, 11, 16, 0.91], [5165, 1, 7, 2.89], [2912, 1, 7, 2.32], [8898, 3, 7, 5], [2776, 2, 7, 1.86], [8672, 2, 7, 2.68], [413, 1, 7, 2.28], [12344, 1, 7, 2.85], [410, 1, 7, 3.08], [12351, 1, 7, 3.59], [12343, 1, 7, 5], [10386, 2, 7, 1.86], [13928, 1, 7, 0.86], [418, 2, 7, 0.92], [1492, 1, 7, 1.76], [12345, 1, 7, 2.5], [9784, 1, 7, 0.96], [412, 1, 7, 0.92], [11490, 1, 7, 0.97], [8677, 3, 7, 1.66], [2912, 2, 8, 2.19], [308, 1, 7, 3.28], [307, 2, 7, 0.91], [7567, 3, 7, 2.9], [159, 1, 7, 1.18], [13283, 1, 7, 4.26], [432, 3, 7, 0.86], [414, 1, 7, 1.21], [286, 3, 7, 4.38], [11770, 1, 7, 0.85], [33, 1, 7, 2.44], [5490, 2, 7, 0.83], [22317, 3, 7, 0.92], [10407, 10, 10, 3.52], [35, 1, 7, 2.44], [10410, 10, 10, 3.25], [10780, 10, 7, 2.99], [335, 3, 15, 0.64], [6497, 1, 7, 2.41], [972, 1, 7, 2.77], [10387, 2, 7, 1.91], [3478, 2, 7, 2.19], [74, 1, 7, 1.8], [9691, 1, 7, 1.94], [12347, 1, 7, 2.67], [12271, 2, 7, 1.86], [20686, 1, 7, 2.46], [2497, 2, 7, 1.11], [2331, 1, 7, 1.69], [8897, 3, 7, 5], [2775, 2, 135, 2.51], [8939, 2, 166, 2.32], [3982, 3, 679, 3.79], [21793, 1, 191, 3.53], [1429, 2, 131, 2.36], [96, 11, 733, 2.55], [6158, 2, 228, 2.69], [12269, 2, 54, 3.35], [9372, 1, 195, 3.47], [5165, 2, 328, 4.35], [12352, 1, 519, 4.02], [84, 2, 57, 3.1], [1126, 2, 196, 2.9], [10388, 2, 185, 3.71], [972, 3, 508, 4.22], [411, 2, 94, 2.64], [98, 11, 717, 2.35], [5165, 1, 41, 4.34], [2912, 1, 42, 3.77], [8898, 3, 241, 6], [2776, 2, 135, 3.31], [8672, 2, 246, 4.13], [413, 1, 74, 3.73], [12344, 1, 519, 4.31], [410, 1, 89, 4.53], [12351, 1, 519, 5.05], [12343, 1, 519, 6], [10386, 2, 185, 3.31], [13928, 1, 41, 2.31], [418, 2, 122, 2.37], [1492, 1, 32, 3.21], [12345, 1, 519, 3.96], [9784, 1, 63, 2.41], [412, 1, 72, 2.36], [11490, 1, 94, 2.42], [8677, 3, 254, 3.11], [2912, 2, 334, 3.64], [308, 1, 138, 4.73], [307, 2, 128, 2.36], [7567, 3, 60, 4.35], [159, 1, 34, 2.63], [13283, 1, 273, 5.7], [432, 3, 263, 2.31], [414, 1, 74, 2.65], [286, 3, 120, 5.82], [11770, 1, 188, 2.29], [33, 1, 96, 3.89], [5490, 2, 93, 2.28], [22317, 3, 272, 2.38], [10407, 10, 1002, 4.99], [35, 1, 96, 3.89], [10410, 10, 1002, 4.71], [10780, 10, 315, 4.44], [335, 3, 1163, 2.07], [6497, 1, 32, 3.86], [972, 1, 85, 4.22], [10387, 2, 185, 3.36], [3478, 2, 65, 3.63], [74, 1, 174, 3.25], [9691, 1, 52, 3.29], [12347, 1, 519, 4.12], [12271, 2, 54, 3.31], [20686, 1, 527, 3.9], [2497, 2, 175, 2.55], [2331, 1, 102, 3.13], [8897, 3, 241, 6]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 10, 1.91], [141, 2, 7, 0.88], [362, 2, 7, 0.89], [361, 2, 7, 1.08], [6935, 2, 19, 4.42], [12721, 2, 11, 2.8], [206, 2, 7, 1.04], [2049, 3, 14, 0.75], [8676, 2, 7, 1.1], [1504, 2, 11, 0.95], [8675, 2, 9, 1.39], [417, 2, 7, 0.87], [6936, 2, 9, 3.14], [3, 2, 7, 1.13], [305, 2, 7, 0.88], [523, 2, 7, 1.22], [151, 1, 7, 1.31], [22247, 2, 7, 1.83], [8650, 2, 9, 2.15], [142, 2, 7, 1.05], [8648, 2, 7, 2.02], [2328, 2, 7, 1.85], [2776, 2, 7, 0.88], [8853, 2, 7, 3.03], [616, 2, 7, 0.96], [11739, 2, 7, 2.7], [2327, 2, 7, 1.82], [411, 2, 7, 0.7], [12352, 1, 7, 2.89], [589, 2, 7, 0.68], [143, 2, 7, 1.56], [950, 1, 7, 0.67], [146, 2, 7, 1.14], [412, 1, 7, 2.2], [8674, 2, 7, 2.25], [12353, 1, 7, 2.89], [145, 2, 7, 0.9], [583, 2, 7, 1.85], [2805, 137, 9, 3.51], [6497, 1, 7, 0.85], [326, 2, 7, 1.85], [418, 2, 7, 0.85], [11738, 2, 7, 2.48], [10574, 3, 9, 2.49], [6097, 80, 7, 2.95], [9784, 1, 7, 1.57], [10149, 3, 21, 1.56], [6097, 29, 7, 2.95], [75, 2, 7, 1.88], [11234, 2, 8, 1.32], [12344, 1, 7, 1.3], [2057, 3, 7, 0.64], [1413, 15, 7, 0.94], [20252, 2, 7, 0.91], [11504, 2, 7, 0.8], [12269, 2, 7, 1.11], [2054, 3, 7, 0.91], [8915, 2, 7, 0.75], [6496, 1, 7, 0.91], [1492, 1, 7, 1.2], [247, 1, 7, 0.84], [2774, 2, 7, 3.11], [6098, 80, 7, 3.83], [12346, 1, 7, 2.89], [3429, 15, 7, 0.85], [1886, 2, 7, 0.92], [416, 1, 7, 1.74], [944, 15, 7, 0.87], [6098, 29, 7, 3.83], [2859, 15, 7, 1.3], [3934, 5, 8, 0.94], [1414, 15, 7, 0.94], [201, 3, 7, 2.66], [21793, 1, 7, 3.5], [3670, 2, 9, 4.54], [159, 3, 9, 1.37], [20555, 2, 7, 1.03], [6158, 2, 8, 1.76], [2049, 1, 7, 0.75], [3478, 2, 7, 2.36], [20686, 1, 7, 1.79], [7084, 3, 7, 3.6], [9785, 1, 7, 2.09], [12526, 2, 7, 3.89], [3430, 15, 7, 1.7], [8599, 1, 7, 1.94], [9342, 2, 8, 0.64], [2050, 3, 7, 0.64], [8938, 2, 7, 1.0], [4253, 1, 7, 1.0], [1413, 16, 7, 0.93], [1703, 2, 7, 1.53], [9760, 29, 7, 1.1], [11887, 2, 8, 0.62], [11885, 2, 7, 0.68], [107, 2, 7, 2.33], [415, 1, 7, 1.74], [11811, 1, 7, 1.93], [11770, 1, 7, 1.99], [436, 2, 7, 0.94], [94, 4, 7, 4.03], [11490, 1, 7, 0.88], [107, 7, 8, 2.38], [3673, 2, 7, 3.82], [2438, 2, 8, 2.28], [2421, 80, 7, 2.62], [11844, 2, 7, 0.78], [11671, 1, 7, 2.17], [5939, 3, 7, 0.72], [4940, 1, 7, 0.79], [1309, 1, 7, 3.32], [11771, 1, 7, 3.17], [140, 2, 7, 1.24], [11160, 1, 7, 0.81], [3495, 3, 17, 1.77], [7036, 1, 7, 0.87], [1668, 1, 7, 1.86], [409, 1, 7, 0.77], [9491, 21, 16, 0.95], [5813, 3, 8, 1.72], [11954, 1, 7, 0.77], [105, 3, 7, 0.81], [12347, 1, 7, 1.57], [23920, 2, 7, 0.77], [12764, 2, 8, 1.28], [9690, 1, 7, 0.94], [19687, 1, 7, 2.21], [11808, 1, 7, 0.8], [2421, 29, 7, 2.68], [2108, 3, 8, 0.93], [5811, 3, 8, 1.72], [8274, 3, 7, 4.22], [11180, 1, 7, 1.1], [6098, 29, 37, 5.62], [2859, 15, 69, 3.09], [3934, 5, 583, 2.73], [1414, 15, 99, 2.72], [201, 3, 297, 4.45], [21793, 1, 241, 5.28], [3670, 2, 235, 6], [159, 3, 706, 3.16], [20555, 2, 57, 2.81], [6158, 2, 258, 3.54], [2049, 1, 15, 2.36], [3478, 2, 75, 4.14], [20686, 1, 610, 3.58], [7084, 3, 128, 5.39], [9785, 1, 72, 3.87], [12526, 2, 271, 5.68], [3430, 15, 69, 3.48], [8599, 1, 144, 3.73], [9342, 2, 156, 1.71], [2050, 3, 161, 1.72], [8938, 2, 191, 2.78], [4253, 1, 171, 2.78], [1413, 16, 50, 2.71], [1703, 2, 163, 3.32], [9760, 29, 71, 2.88], [11887, 2, 97, 2.05], [11885, 2, 97, 2.11], [107, 2, 48, 4.11], [415, 1, 85, 3.52], [11811, 1, 449, 3.71], [11770, 1, 215, 3.77], [436, 2, 107, 2.72], [94, 4, 118, 5.81], [11490, 1, 109, 2.66], [107, 7, 238, 4.16], [3673, 2, 235, 5.61], [2438, 2, 623, 4.06], [2421, 80, 208, 4.41], [11844, 2, 276, 2.57], [11671, 1, 300, 3.96], [5939, 3, 134, 2.16], [4940, 1, 121, 2.57], [1309, 1, 54, 5.1], [11771, 1, 212, 4.95], [140, 2, 91, 3.02], [11160, 1, 516, 2.59], [3495, 3, 960, 3.54], [7036, 1, 127, 2.65], [1668, 1, 102, 3.64], [409, 1, 46, 2.48], [9491, 21, 2130, 2.76], [5813, 3, 586, 3.5], [11954, 1, 202, 2.56], [105, 3, 205, 2.52], [12347, 1, 613, 3.35], [23920, 2, 106, 2.56], [12764, 2, 737, 3.07], [9690, 1, 75, 2.72], [19687, 1, 30, 3.99], [11808, 1, 486, 2.57], [2421, 29, 42, 4.46], [2108, 3, 272, 2.71], [5811, 3, 586, 3.5], [11180, 1, 87, 2.89]]</t>
-  </si>
-  <si>
-    <t>[[2327, 2, 7, 0.96], [6935, 2, 11, 3.9], [305, 2, 7, 0.82], [2778, 2, 7, 0.93], [144, 2, 7, 0.99], [130, 1, 7, 1.86], [589, 2, 8, 0.87], [143, 2, 7, 0.81], [2328, 2, 7, 1.39], [6936, 2, 7, 3.27], [8648, 2, 7, 3.08], [2775, 2, 7, 0.93], [326, 2, 7, 2.74], [8650, 2, 7, 2.8], [593, 2, 9, 0.94], [145, 2, 7, 0.93], [146, 2, 7, 1.05], [3840, 1, 7, 1.45], [7036, 1, 7, 3.03], [2776, 2, 7, 1.13], [2049, 3, 10, 0.87], [615, 2, 7, 3.0], [616, 2, 7, 2.33], [88, 10, 16, 2.1], [151, 1, 7, 1.31], [141, 2, 7, 0.72], [7004, 1, 7, 2.28], [11681, 2, 11, 4.17], [1124, 2, 7, 1.46], [1446, 2, 7, 1.82], [9760, 29, 7, 1.24], [8853, 2, 7, 3.35], [5491, 2, 7, 1.52], [990, 2, 7, 1.45], [1007, 2, 7, 0.85], [159, 3, 8, 1.18], [362, 2, 7, 0.95], [1504, 2, 7, 0.69], [9372, 1, 7, 3.18], [8649, 2, 7, 3.15], [12870, 1, 7, 3.19], [3893, 1, 7, 0.71], [2912, 1, 7, 2.33], [8938, 2, 7, 0.99], [434, 2, 7, 0.89], [624, 2, 7, 2.25], [3889, 1, 7, 1.38], [2054, 3, 7, 0.91], [5165, 1, 7, 3.0], [1429, 2, 7, 1.46], [378, 2, 7, 4.21], [7005, 1, 7, 1.99], [140, 2, 7, 2.74], [7084, 3, 7, 1.05], [3891, 1, 7, 0.76], [2991, 3, 7, 3.64], [10574, 3, 9, 3.22], [1006, 2, 7, 1.01], [7886, 4, 7, 0.8], [7573, 1, 22, 2.1], [10149, 3, 21, 2.09], [5208, 3, 7, 1.78], [75, 2, 7, 1.88], [1622, 1, 7, 0.84], [12352, 1, 7, 1.08], [21793, 1, 7, 4.06], [3, 2, 7, 1.14], [20927, 1, 7, 1.39], [997, 2, 7, 2.32], [12353, 1, 7, 1.08], [5165, 2, 8, 3.08], [11234, 2, 7, 2.3], [12721, 2, 7, 1.92], [346, 3, 7, 0.8], [1886, 2, 7, 1.04], [22247, 2, 7, 2.27], [11811, 1, 7, 0.8], [147, 1, 7, 2.42], [229, 1, 7, 0.89], [996, 2, 7, 3.13], [12346, 1, 7, 1.08], [20252, 2, 7, 0.88], [972, 3, 8, 1.52], [94, 4, 7, 2.1], [998, 2, 7, 1.5], [9491, 21, 21, 0.95], [12345, 1, 7, 1.08], [2912, 2, 12, 2.22], [76, 2, 7, 1.1], [35, 1, 7, 1.44], [11685, 2, 11, 4.22], [439, 1, 7, 1.03], [8104, 1, 7, 1.7], [6158, 2, 7, 4.79], [413, 1, 7, 1.76], [12343, 1, 7, 1.08], [2424, 80, 7, 4.39], [5076, 1, 7, 0.87], [13928, 1, 7, 1.29], [2805, 137, 7, 2.91], [5209, 3, 7, 1.78], [8676, 2, 7, 3.61], [12350, 1, 7, 1.08], [2774, 2, 7, 1.01], [148, 1, 7, 4.46], [83, 2, 7, 0.82], [412, 1, 7, 0.81], [418, 2, 7, 1.15], [33, 1, 7, 1.72], [3495, 3, 16, 1.61], [2336, 3, 8, 0.78], [20256, 2, 7, 0.96], [8898, 3, 7, 1.0], [7887, 4, 7, 1.42], [38, 1, 7, 1.16], [415, 1, 7, 0.97], [96, 11, 21, 0.64], [10407, 10, 10, 2.08], [11739, 2, 7, 2.52], [34, 1, 7, 1.05], [2424, 29, 7, 4.34], [13928, 2, 7, 1.29], [84, 2, 7, 1.65], [126, 2, 7, 2.74], [3048, 3, 7, 3.77], [11953, 1, 7, 1.0], [12344, 1, 7, 1.08], [11772, 1, 7, 0.84], [12351, 1, 7, 1.08], [8939, 2, 7, 0.89], [5584, 3, 7, 2.24], [10410, 10, 15, 2.08], [39, 1, 7, 1.1], [997, 2, 232, 3.96], [12353, 1, 617, 2.72], [5165, 2, 369, 4.71], [11234, 2, 178, 3.94], [12721, 2, 274, 3.56], [346, 3, 617, 2.44], [1886, 2, 152, 2.67], [22247, 2, 274, 3.9], [11811, 1, 446, 2.44], [147, 1, 86, 4.06], [229, 1, 82, 2.53], [996, 2, 227, 4.77], [12346, 1, 617, 2.72], [20252, 2, 91, 2.52], [972, 3, 579, 3.17], [94, 4, 117, 3.74], [998, 2, 232, 3.14], [9491, 21, 2074, 2.55], [12345, 1, 617, 2.72], [2912, 2, 379, 3.85], [76, 2, 106, 2.73], [35, 1, 108, 3.08], [11685, 2, 260, 5.85], [439, 1, 85, 2.67], [8104, 1, 199, 3.33], [6158, 2, 248, 6], [413, 1, 84, 3.4], [12343, 1, 617, 2.72], [2424, 80, 160, 6], [5076, 1, 127, 2.5], [13928, 1, 46, 2.92], [2805, 137, 174, 4.54], [5209, 3, 541, 3.41], [8676, 2, 275, 5.25], [12350, 1, 617, 2.72], [2774, 2, 199, 2.65], [148, 1, 86, 6], [83, 2, 44, 2.39], [412, 1, 82, 2.45], [418, 2, 138, 2.79], [33, 1, 108, 3.35], [3495, 3, 935, 3.25], [2336, 3, 570, 2.42], [20256, 2, 91, 2.59], [8898, 3, 285, 2.64], [7887, 4, 68, 2.73], [38, 1, 108, 2.8], [415, 1, 84, 2.61], [96, 11, 555, 2.1], [10407, 10, 1164, 3.71], [11739, 2, 55, 4.16], [34, 1, 108, 2.69], [2424, 29, 32, 5.98], [13928, 2, 23, 2.92], [84, 2, 65, 3.29], [126, 2, 87, 4.37], [3048, 3, 262, 5.41], [11953, 1, 194, 2.64], [12344, 1, 617, 2.72], [11772, 1, 214, 2.47], [12351, 1, 617, 2.72], [8939, 2, 187, 2.53], [5584, 3, 232, 3.88], [10410, 10, 1164, 3.71], [39, 1, 108, 2.74]]</t>
+    <t>11/12/2025 12:39</t>
+  </si>
+  <si>
+    <t>13/12/2025 23:59</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 6, 0.73], [305, 2, 4, 0.25], [3, 2, 4, 0.47], [326, 2, 4, 0.54], [589, 2, 5, 0.37], [6935, 2, 8, 1.27], [205, 2, 4, 0.37], [143, 2, 4, 0.58], [75, 2, 5, 0.87], [144, 2, 4, 0.49], [12721, 2, 6, 0.72], [145, 2, 4, 0.52], [8915, 2, 6, 0.2], [1776, 1, 4, 0.61], [146, 2, 4, 0.52], [2778, 2, 5, 0.2], [206, 2, 4, 0.2], [6936, 2, 5, 1.17], [1777, 1, 4, 0.74], [151, 1, 4, 0.37], [8648, 2, 4, 1.52], [2328, 2, 4, 0.39], [8650, 2, 4, 1.9], [5151, 2, 4, 1.02], [2050, 3, 5, 0.41], [7886, 4, 4, 0.45], [141, 2, 4, 0.53], [248, 1, 4, 0.2], [88, 10, 10, 0.45], [74, 1, 4, 1.53], [2054, 3, 4, 0.54], [2991, 3, 4, 2.05], [2057, 3, 5, 0.47], [7004, 1, 4, 0.37], [1446, 2, 4, 0.2], [1492, 1, 4, 1.22], [362, 2, 4, 0.48], [2055, 3, 4, 0.42], [76, 2, 4, 0.84], [8649, 2, 4, 1.9], [345, 3, 4, 0.57], [7005, 1, 4, 0.38], [3889, 1, 4, 0.2], [11234, 2, 6, 0.2], [10825, 21, 8, 1.28], [7084, 3, 4, 2.03], [5081, 2, 4, 0.69], [12870, 1, 4, 2.33], [7036, 1, 4, 0.43], [10149, 3, 15, 0.99], [3478, 2, 4, 1.03], [1654, 2, 4, 0.54], [94, 4, 4, 0.4], [3891, 1, 4, 0.27], [167, 3, 5, 1.15], [432, 3, 5, 0.62], [33, 1, 4, 0.83], [9827, 3, 4, 0.2], [411, 2, 4, 0.37], [168, 3, 4, 1.23], [8677, 3, 6, 0.65], [79, 1, 4, 0.2], [3893, 1, 4, 0.2], [23, 1, 4, 0.67], [22247, 2, 6, 1.15], [201, 3, 4, 0.57], [1490, 1, 4, 0.2], [1124, 2, 5, 0.2], [5812, 3, 6, 0.81], [96, 11, 17, 0.38], [11737, 2, 4, 0.2], [9760, 29, 4, 0.74], [35, 1, 4, 0.83], [6158, 2, 6, 0.51], [335, 3, 9, 0.4], [12225, 1, 4, 0.43], [412, 1, 4, 1.14], [346, 1, 4, 0.56], [20927, 1, 4, 0.49], [229, 1, 4, 2.57], [25, 1, 4, 0.76], [1767, 25, 4, 0.59], [45, 2, 4, 0.64], [998, 2, 5, 1.52], [3980, 4, 5, 1.25], [413, 1, 4, 1.07], [21269, 3, 4, 1.6], [346, 3, 4, 0.51], [3495, 3, 15, 1.31], [95, 3, 11, 0.54], [856, 1, 4, 0.36], [1766, 25, 4, 0.56], [5946, 1, 4, 1.03], [490, 1, 4, 0.53], [997, 2, 4, 0.77], [8898, 3, 4, 0.75], [34, 1, 4, 0.38], [1070, 7, 9, 0.46], [9372, 1, 4, 1.74], [9691, 1, 4, 1.27], [9690, 1, 4, 0.97], [11954, 1, 4, 0.2], [20498, 1, 4, 0.48], [14017, 3, 4, 1.04], [974, 3, 5, 0.88], [418, 2, 4, 0.46], [14037, 3, 4, 0.44], [22317, 3, 4, 0.51], [972, 3, 5, 0.65], [20498, 3, 5, 1.08], [1091, 1, 4, 0.66], [9828, 3, 4, 0.46], [8274, 3, 4, 0.46], [38, 1, 4, 0.38], [5584, 3, 4, 1.19], [5811, 3, 4, 1.81], [1414, 15, 4, 0.42], [12350, 1, 4, 0.53], [5813, 3, 4, 1.51], [2991, 1, 4, 0.52], [24, 1, 4, 1.04], [3048, 3, 4, 1.24], [110, 4, 4, 0.38], [1080, 3, 4, 0.8], [13034, 3, 5, 1.09], [8104, 1, 4, 0.44], [13260, 29, 4, 0.73], [1767, 2, 4, 0.59], [336, 15, 4, 0.38], [11811, 1, 4, 0.94], [955, 2, 4, 0.47], [8635, 3, 4, 0.5], [39, 1, 4, 0.59], [10780, 10, 4, 0.98], [2878, 1, 4, 0.61], [9082, 3, 15, 0.83], [3981, 3, 10, 1.42], [4203, 1, 4, 0.55], [8672, 2, 206, 4.48], [305, 2, 125, 2.8], [3, 2, 89, 2.67], [326, 2, 58, 3.44], [6935, 2, 206, 4.81], [205, 2, 80, 2.49], [143, 2, 108, 2.86], [75, 2, 107, 3.41], [144, 2, 109, 2.71], [12721, 2, 204, 3.5], [145, 2, 109, 2.76], [1776, 1, 80, 2.94], [146, 2, 109, 2.77], [2778, 2, 114, 2.87], [6936, 2, 206, 4.28], [1777, 1, 93, 3.16], [151, 1, 49, 2.48], [8648, 2, 161, 5.34], [2328, 2, 109, 3.35], [8650, 2, 161, 6.0], [5151, 2, 17, 4.32], [2050, 3, 260, 3.41], [141, 2, 132, 3.42], [248, 1, 35, 2.49], [88, 10, 403, 5.17], [74, 1, 144, 5.34], [2054, 3, 408, 2.35], [2991, 3, 116, 5.98], [2057, 3, 346, 2.68], [7004, 1, 51, 2.49], [1446, 2, 98, 3.24], [1492, 1, 32, 3.65], [362, 2, 90, 3.59], [2055, 3, 346, 2.6], [76, 2, 93, 3.35], [8649, 2, 161, 6.0], [345, 3, 219, 2.85], [7005, 1, 51, 2.5], [3889, 1, 91, 2.61], [11234, 2, 134, 3.07], [10825, 21, 270, 4.0], [5081, 2, 137, 3.07], [12870, 1, 99, 6.0], [7036, 1, 92, 3.55], [10149, 3, 646, 3.49], [1654, 2, 79, 2.34], [94, 4, 87, 3.91], [3891, 1, 91, 3.93], [167, 3, 164, 4.08], [432, 3, 221, 2.95], [33, 1, 100, 3.25], [9827, 3, 63, 2.69], [411, 2, 80, 2.49], [168, 3, 345, 3.67], [8677, 3, 214, 3.07], [79, 1, 35, 2.47], [3893, 1, 91, 3.93], [23, 1, 81, 3.04], [22247, 2, 204, 4.02], [201, 3, 219, 2.85], [1490, 1, 37, 2.48], [1124, 2, 135, 3.24]]</t>
+  </si>
+  <si>
+    <t>[[2327, 2, 4, 0.52], [305, 2, 4, 0.45], [6935, 2, 5, 1.69], [2778, 2, 4, 0.2], [589, 2, 5, 0.2], [144, 2, 4, 0.54], [130, 1, 4, 0.45], [8915, 2, 5, 0.46], [143, 2, 4, 0.44], [2328, 2, 4, 0.26], [6936, 2, 4, 1.66], [8648, 2, 4, 1.15], [2775, 2, 4, 0.2], [205, 2, 4, 0.37], [8650, 2, 4, 1.53], [593, 2, 5, 0.4], [326, 2, 4, 0.72], [146, 2, 4, 0.57], [145, 2, 4, 0.5], [5493, 2, 4, 0.44], [3840, 1, 5, 0.29], [7036, 1, 4, 1.2], [2049, 3, 6, 0.21], [2776, 2, 4, 0.2], [88, 10, 9, 1.01], [141, 2, 5, 0.39], [7004, 1, 4, 1.24], [206, 2, 4, 0.37], [9760, 29, 4, 0.2], [990, 2, 4, 0.27], [1007, 2, 4, 0.2], [362, 2, 4, 0.52], [2055, 3, 4, 0.56], [2912, 1, 4, 0.77], [3893, 1, 4, 0.2], [142, 2, 4, 0.4], [2057, 3, 4, 0.56], [12870, 1, 4, 1.68], [9372, 1, 4, 1.84], [10993, 2, 4, 0.6], [2050, 3, 4, 0.56], [3889, 1, 4, 0.25], [2054, 3, 4, 0.2], [7084, 3, 4, 1.07], [523, 2, 4, 0.38], [2991, 3, 4, 1.1], [7886, 4, 5, 0.44], [10, 2, 4, 0.36], [3891, 1, 4, 0.2], [7573, 1, 9, 1.95], [1622, 1, 4, 0.2], [10149, 3, 15, 1.21], [5208, 3, 4, 0.46], [75, 2, 4, 1.0], [20927, 1, 4, 1.26], [3, 2, 5, 0.62], [11234, 2, 5, 0.75], [997, 2, 4, 1.26], [1886, 2, 4, 0.2], [12721, 2, 4, 1.46], [346, 3, 5, 0.21], [22247, 2, 5, 1.14], [996, 2, 4, 0.6], [229, 1, 4, 1.05], [998, 2, 4, 0.81], [94, 4, 4, 0.9], [2912, 2, 7, 1.24], [972, 3, 5, 0.51], [9491, 21, 12, 0.22], [35, 1, 4, 1.29], [76, 2, 5, 0.6], [413, 1, 4, 1.38], [33, 1, 4, 0.93], [83, 2, 4, 0.95], [13928, 1, 4, 0.7], [5076, 1, 4, 0.97], [2805, 137, 4, 1.33], [5209, 3, 5, 0.96], [8104, 1, 5, 0.59], [346, 1, 4, 0.43], [8676, 2, 4, 0.97], [7887, 4, 4, 0.97], [38, 1, 4, 1.13], [8898, 3, 4, 2.55], [12212, 29, 4, 0.47], [3495, 3, 10, 0.92], [84, 2, 4, 0.9], [34, 1, 4, 1.07], [11490, 1, 4, 0.46], [10407, 10, 7, 1.19], [632, 11, 13, 0.45], [11770, 1, 4, 0.6], [13928, 2, 4, 0.55], [995, 2, 4, 1.64], [11772, 1, 4, 0.2], [9690, 1, 4, 0.47], [411, 2, 4, 0.48], [39, 1, 4, 1.1], [9691, 1, 4, 0.72], [1703, 2, 4, 0.83], [11953, 1, 4, 0.2], [82, 2, 4, 0.82], [5584, 3, 4, 1.02], [12764, 2, 5, 0.99], [13893, 2, 4, 1.17], [7567, 3, 4, 1.08], [74, 1, 4, 0.99], [10410, 10, 9, 1.66], [972, 1, 4, 0.53], [5164, 1, 4, 1.95], [21269, 3, 4, 0.99], [1523, 1, 4, 0.6], [23961, 3, 4, 1.88], [2331, 1, 4, 0.64], [13023, 3, 5, 0.8], [10408, 10, 5, 1.84], [4253, 1, 4, 0.58], [1492, 1, 4, 0.45], [4076, 3, 4, 1.42], [6097, 80, 4, 0.76], [6805, 1, 4, 0.51], [12229, 2, 4, 0.49], [2438, 2, 5, 1.64], [13034, 3, 4, 1.2], [3429, 15, 4, 0.44], [3047, 3, 4, 1.14], [21059, 1, 4, 0.82], [8283, 2, 5, 0.68], [1243, 2, 4, 1.13], [3576, 29, 4, 0.42], [3430, 15, 4, 0.95], [2436, 4, 4, 0.56], [8674, 2, 4, 0.97], [6097, 29, 4, 0.76], [10780, 10, 4, 1.15], [19931, 1, 4, 1.26], [11812, 1, 4, 0.46], [2327, 2, 125, 3.09], [305, 2, 122, 2.96], [6935, 2, 232, 6.0], [2778, 2, 131, 3.06], [589, 2, 127, 3.01], [144, 2, 125, 3.13], [8915, 2, 188, 2.44], [143, 2, 123, 2.95], [2328, 2, 125, 3.53], [6936, 2, 232, 5.4], [8648, 2, 186, 5.21], [2775, 2, 131, 3.06], [205, 2, 89, 2.31], [8650, 2, 186, 4.94], [593, 2, 189, 3.07], [326, 2, 30, 4.87], [146, 2, 125, 3.18], [145, 2, 125, 3.06], [5493, 2, 107, 2.48], [3840, 1, 142, 3.59], [7036, 1, 107, 5.16], [2049, 3, 181, 2.85], [2776, 2, 131, 3.27], [88, 10, 467, 4.23], [141, 2, 130, 2.86], [206, 2, 36, 1.72], [9760, 29, 74, 2.87], [362, 2, 118, 3.09], [2055, 3, 158, 2.07], [2912, 1, 44, 4.46], [3893, 1, 104, 2.85], [142, 2, 153, 2.39], [2057, 3, 158, 2.07], [12870, 1, 114, 5.33], [9372, 1, 188, 5.31], [2050, 3, 158, 2.07], [3889, 1, 104, 3.51], [2054, 3, 267, 2.38], [7084, 3, 109, 3.69], [523, 2, 153, 2.36], [2991, 3, 135, 5.78], [10, 2, 103, 2.52], [3891, 1, 104, 2.9], [7573, 1, 306, 5.44], [1622, 1, 53, 2.97], [10149, 3, 735, 4.24], [75, 2, 120, 4.02], [3, 2, 101, 3.46], [11234, 2, 152, 4.44], [997, 2, 198, 4.46], [1886, 2, 130, 3.17], [12721, 2, 233, 4.44], [346, 3, 525, 2.95], [22247, 2, 233, 4.41], [996, 2, 193, 5.27], [229, 1, 70, 3.65], [998, 2, 198, 3.64], [94, 4, 100, 4.24], [2912, 2, 323, 4.81], [972, 3, 493, 3.68], [9491, 21, 1763, 3.05], [35, 1, 73, 3.95], [76, 2, 91, 3.23]]</t>
+  </si>
+  <si>
+    <t>[[11685, 2, 4, 1.87], [6935, 2, 5, 1.34], [130, 1, 4, 0.2], [326, 2, 5, 0.7], [8648, 2, 4, 0.96], [144, 2, 4, 0.47], [2327, 2, 5, 0.54], [589, 2, 5, 0.2], [593, 2, 5, 0.52], [143, 2, 4, 1.01], [205, 2, 5, 0.51], [11681, 2, 5, 1.37], [305, 2, 4, 0.51], [2328, 2, 4, 0.51], [141, 2, 4, 0.53], [6936, 2, 4, 1.85], [151, 1, 4, 0.38], [2778, 2, 4, 0.2], [2049, 3, 8, 0.41], [146, 2, 4, 0.57], [88, 10, 10, 0.19], [615, 2, 4, 0.87], [9507, 3, 5, 0.2], [145, 2, 4, 0.48], [7036, 1, 4, 1.23], [1446, 2, 4, 0.61], [8853, 2, 4, 1.2], [362, 2, 4, 0.5], [3893, 1, 4, 0.7], [2055, 3, 5, 1.73], [75, 2, 4, 0.9], [417, 2, 4, 0.55], [11737, 2, 5, 0.2], [2050, 3, 4, 1.69], [12870, 1, 4, 0.7], [523, 2, 4, 0.53], [159, 3, 6, 0.24], [2057, 3, 4, 1.78], [142, 2, 4, 0.52], [2991, 3, 4, 1.1], [997, 2, 4, 0.78], [7084, 3, 4, 0.28], [9760, 29, 4, 0.2], [3982, 3, 12, 1.18], [11739, 2, 4, 0.73], [996, 2, 4, 0.55], [6158, 2, 5, 0.2], [998, 2, 4, 0.69], [98, 11, 10, 0.54], [84, 2, 4, 0.4], [9372, 1, 4, 2.31], [7885, 4, 4, 0.4], [10388, 2, 4, 1.08], [8672, 2, 5, 0.73], [972, 3, 4, 2.01], [8898, 3, 4, 3.1], [2912, 1, 4, 0.76], [3980, 4, 4, 1.2], [410, 1, 5, 0.4], [9491, 21, 10, 0.51], [10386, 2, 4, 1.51], [1492, 1, 4, 0.45], [13928, 1, 5, 0.2], [995, 2, 4, 1.16], [22316, 3, 4, 0.51], [22247, 2, 4, 1.1], [8677, 3, 4, 0.9], [3981, 3, 13, 1.15], [308, 1, 5, 0.95], [13893, 2, 4, 1.13], [2912, 2, 5, 1.77], [229, 1, 4, 0.7], [33, 1, 4, 1.83], [10631, 2, 4, 1.98], [11953, 1, 4, 0.47], [11490, 1, 4, 0.55], [35, 1, 4, 1.33], [159, 1, 4, 0.51], [7886, 4, 4, 0.49], [11770, 1, 4, 0.2], [22317, 3, 5, 0.51], [10407, 10, 6, 1.35], [10780, 10, 4, 1.67], [10410, 10, 6, 1.31], [1413, 15, 4, 0.53], [10149, 3, 13, 1.48], [6497, 1, 4, 0.45], [335, 3, 10, 0.39], [9691, 1, 4, 0.89], [74, 1, 5, 0.62], [10387, 2, 4, 0.95], [3478, 2, 4, 1.69], [972, 1, 4, 2.01], [12271, 2, 4, 1.51], [8897, 3, 4, 3.6], [345, 3, 4, 0.51], [9690, 1, 4, 1.09], [9971, 2, 4, 0.69], [159, 16, 4, 0.49], [2331, 1, 4, 0.88], [9082, 3, 18, 0.83], [3048, 3, 4, 0.92], [37, 1, 4, 0.66], [4076, 3, 4, 0.85], [11085, 2, 4, 1.27], [34, 1, 4, 0.43], [23611, 3, 4, 0.42], [7704, 2, 4, 1.64], [12721, 2, 4, 0.97], [11404, 2, 4, 0.43], [1163, 3, 4, 0.59], [20498, 3, 5, 0.99], [1523, 1, 4, 0.8], [11510, 3, 5, 0.5], [10936, 2, 4, 1.7], [45, 2, 4, 0.46], [4001, 3, 7, 1.13], [12764, 2, 5, 0.84], [9965, 2, 4, 0.69], [105, 3, 4, 0.51], [9964, 2, 4, 0.69], [38, 1, 4, 0.66], [215, 4, 4, 0.77], [1895, 3, 4, 0.74], [12858, 1, 4, 0.48], [10408, 10, 5, 1.64], [8635, 3, 4, 1.01], [5812, 3, 4, 0.51], [10411, 10, 5, 1.71], [11738, 2, 4, 0.88], [12212, 29, 4, 0.45], [2805, 137, 5, 0.47], [8659, 1, 4, 1.01], [11812, 1, 4, 0.46], [192, 3, 9, 1.01], [10093, 3, 9, 0.9], [2438, 2, 5, 1.32], [11685, 2, 200, 5.3], [6935, 2, 208, 4.76], [8648, 2, 165, 4.65], [144, 2, 52, 3.47], [2327, 2, 111, 2.93], [589, 2, 113, 2.55], [593, 2, 167, 3.17], [143, 2, 109, 3.38], [205, 2, 38, 2.88], [11681, 2, 200, 5.29], [305, 2, 108, 2.88], [2328, 2, 111, 2.89], [141, 2, 114, 3.53], [6936, 2, 208, 6.0], [151, 1, 35, 1.93], [2778, 2, 115, 3.01], [2049, 3, 406, 2.82], [146, 2, 111, 3.51], [88, 10, 424, 2.78], [615, 2, 80, 3.55], [145, 2, 78, 3.77], [7036, 1, 93, 4.22], [1446, 2, 112, 3.99], [8853, 2, 208, 4.32], [362, 2, 104, 2.86], [3893, 1, 108, 2.83], [2055, 3, 336, 5.36], [75, 2, 127, 3.17], [417, 2, 114, 2.95], [11737, 2, 20, 3.21], [2050, 3, 336, 5.27], [12870, 1, 119, 5.14], [523, 2, 114, 3.0], [159, 3, 249, 3.24], [2057, 3, 336, 5.47], [142, 2, 114, 2.89], [2991, 3, 119, 6.0], [997, 2, 208, 2.94], [7084, 3, 96, 3.38], [9760, 29, 50, 2.81], [3982, 3, 578, 4.3], [11739, 2, 30, 2.61], [996, 2, 208, 2.5], [6158, 2, 194, 3.19], [998, 2, 208, 2.77], [98, 11, 610, 2.85], [9372, 1, 196, 5.89], [10388, 2, 187, 3.58], [8672, 2, 210, 4.63], [8898, 3, 205, 6.0], [2912, 1, 45, 3.77], [3980, 4, 418, 3.8], [9491, 21, 1854, 2.33], [10386, 2, 158, 4.35], [1492, 1, 32, 2.31], [13928, 1, 35, 3.76], [995, 2, 208, 3.67], [22316, 3, 274, 2.42], [22247, 2, 248, 3.56], [8677, 3, 216, 3.67], [3981, 3, 1397, 3.56], [308, 1, 118, 5.23], [13893, 2, 231, 6.0]]</t>
+  </si>
+  <si>
+    <t>[[326, 2, 4, 0.47], [6935, 2, 8, 0.72], [2049, 3, 8, 0.49], [362, 2, 4, 1.2], [589, 2, 6, 0.2], [141, 2, 4, 0.54], [75, 2, 4, 0.99], [130, 1, 4, 0.5], [3, 2, 4, 0.2], [1776, 1, 4, 0.58], [205, 2, 4, 0.56], [8672, 2, 6, 0.97], [2778, 2, 5, 0.2], [6936, 2, 5, 1.27], [7886, 4, 4, 0.41], [593, 2, 5, 0.36], [305, 2, 4, 0.48], [206, 2, 4, 0.2], [151, 1, 4, 0.44], [1777, 1, 4, 0.93], [8648, 2, 5, 0.77], [2328, 2, 4, 0.2], [88, 10, 10, 0.83], [11681, 2, 5, 2.33], [990, 2, 4, 0.2], [8650, 2, 4, 1.15], [5151, 2, 4, 0.9], [412, 1, 4, 0.91], [2050, 3, 5, 0.66], [144, 2, 4, 0.5], [2991, 3, 4, 1.6], [76, 2, 4, 1.11], [345, 3, 5, 0.2], [10149, 3, 15, 1.32], [57, 1, 5, 0.2], [22247, 2, 5, 1.06], [146, 2, 4, 0.56], [2054, 3, 4, 1.36], [45, 2, 4, 1.12], [7004, 1, 4, 0.47], [417, 2, 4, 0.29], [143, 2, 4, 0.46], [201, 3, 5, 0.42], [21793, 1, 4, 1.03], [167, 3, 5, 1.09], [413, 1, 4, 0.35], [2055, 3, 4, 0.94], [168, 3, 5, 0.74], [74, 1, 4, 0.84], [346, 1, 4, 0.2], [7084, 3, 4, 0.88], [11234, 2, 5, 0.2], [12721, 2, 6, 0.96], [308, 1, 5, 2.44], [10, 2, 4, 0.42], [335, 3, 11, 0.39], [7036, 1, 4, 1.71], [3495, 3, 13, 0.92], [5081, 2, 4, 0.2], [13028, 3, 4, 0.5], [10825, 21, 8, 0.37], [410, 1, 4, 0.2], [12870, 1, 4, 2.33], [8649, 2, 4, 1.15], [11404, 2, 4, 0.43], [79, 1, 4, 0.38], [3889, 1, 4, 0.52], [96, 11, 14, 0.46], [1492, 1, 4, 0.2], [23, 1, 4, 1.23], [5208, 3, 6, 0.19], [3893, 1, 5, 0.2], [9827, 3, 4, 0.2], [1504, 2, 5, 0.2], [94, 4, 4, 0.51], [13260, 29, 4, 0.46], [7005, 1, 4, 0.49], [5812, 3, 5, 1.22], [3891, 1, 4, 0.25], [1490, 1, 5, 0.2], [411, 2, 4, 0.56], [25, 1, 4, 0.95], [12353, 1, 5, 0.71], [33, 1, 4, 0.66], [21269, 3, 4, 1.45], [12349, 1, 4, 2.08], [998, 2, 4, 0.69], [5086, 1, 5, 1.11], [9069, 1, 4, 1.62], [7567, 3, 4, 1.62], [229, 1, 4, 2.57], [3980, 4, 4, 1.31], [2878, 1, 5, 0.54], [20927, 1, 4, 0.61], [346, 3, 5, 0.21], [35, 1, 4, 0.46], [1703, 2, 4, 1.38], [9691, 1, 4, 1.4], [5209, 3, 5, 0.19], [997, 2, 4, 0.6], [11914, 1, 4, 0.2], [14037, 3, 4, 0.36], [8274, 3, 4, 1.09], [5584, 3, 4, 0.44], [5660, 2, 5, 1.05], [11811, 1, 4, 1.0], [1070, 7, 9, 0.39], [159, 3, 6, 0.27], [1519, 3, 12, 0.39], [24, 1, 4, 0.95], [8898, 3, 4, 2.67], [996, 2, 4, 1.21], [1091, 1, 4, 0.2], [23961, 3, 4, 0.5], [1124, 2, 5, 0.46], [13034, 3, 5, 1.26], [9081, 3, 7, 1.28], [12661, 1, 4, 2.1], [952, 4, 4, 2.39], [27, 1, 4, 1.23], [8945, 3, 5, 2.49], [1413, 15, 4, 0.62], [22317, 3, 5, 0.51], [336, 15, 4, 0.2], [10529, 29, 4, 1.44], [9372, 1, 4, 0.39], [1163, 3, 4, 0.47], [12225, 1, 4, 0.58], [9082, 3, 18, 0.67], [6097, 29, 4, 0.59], [4203, 1, 4, 0.53], [9760, 29, 4, 0.45], [66, 16, 4, 0.45], [2109, 3, 9, 0.48], [8635, 3, 4, 0.6], [12346, 1, 4, 1.0], [5811, 3, 4, 0.36], [2104, 3, 6, 1.13], [326, 2, 72, 2.63], [6935, 2, 262, 4.2], [2049, 3, 508, 2.05], [362, 2, 130, 3.47], [589, 2, 71, 2.46], [141, 2, 123, 2.64], [75, 2, 114, 3.61], [3, 2, 97, 2.47], [1776, 1, 89, 2.72], [205, 2, 50, 1.98], [8672, 2, 223, 4.57], [2778, 2, 123, 2.71], [6936, 2, 223, 4.33], [7886, 4, 66, 1.79], [593, 2, 180, 2.48], [305, 2, 115, 2.53], [151, 1, 53, 2.46], [1777, 1, 100, 3.38], [8648, 2, 176, 4.86], [2328, 2, 119, 2.59], [88, 10, 442, 4.1], [11681, 2, 214, 6.0], [990, 2, 41, 2.81], [8650, 2, 176, 4.9], [5151, 2, 19, 2.89], [412, 1, 66, 3.33], [2050, 3, 373, 2.86], [144, 2, 119, 2.59], [2991, 3, 127, 5.29], [76, 2, 85, 3.91], [345, 3, 235, 3.47], [10149, 3, 676, 4.91], [57, 1, 59, 2.35], [22247, 2, 221, 4.15], [146, 2, 119, 3.84], [45, 2, 85, 4.3], [7004, 1, 55, 1.93], [417, 2, 122, 4.03], [143, 2, 117, 2.5], [201, 3, 235, 4.71], [21793, 1, 190, 5.28], [167, 3, 178, 3.66], [413, 1, 68, 2.39], [2055, 3, 368, 4.35], [168, 3, 321, 3.03], [74, 1, 155, 4.17], [346, 1, 125, 2.46], [11234, 2, 145, 2.91], [12721, 2, 221, 3.58], [308, 1, 132, 6.0], [10, 2, 63, 4.58], [335, 3, 1056, 5.08], [7036, 1, 100, 4.49], [3495, 3, 754, 3.21], [5081, 2, 150, 2.65], [13028, 3, 116, 2.58], [10825, 21, 505, 2.33], [410, 1, 84, 2.39], [12870, 1, 108, 5.93], [8649, 2, 176, 4.62], [11404, 2, 73, 2.09], [79, 1, 22, 1.5]]</t>
+  </si>
+  <si>
+    <t>[[88, 10, 10, 0.5], [8915, 2, 5, 0.46], [589, 2, 6, 0.2], [2327, 2, 4, 0.52], [2778, 2, 4, 0.2], [6935, 2, 6, 1.69], [2328, 2, 4, 0.76], [5493, 2, 4, 0.44], [305, 2, 4, 0.45], [615, 2, 4, 0.87], [326, 2, 4, 1.22], [6936, 2, 4, 1.66], [8650, 2, 4, 2.03], [8648, 2, 4, 1.65], [1446, 2, 4, 0.28], [7004, 1, 4, 1.24], [2049, 3, 5, 0.21], [593, 2, 5, 0.4], [143, 2, 4, 0.94], [205, 2, 4, 0.37], [10, 2, 5, 0.92], [144, 2, 4, 1.04], [7036, 1, 4, 1.2], [94, 4, 4, 0.4], [990, 2, 4, 0.27], [3893, 1, 4, 0.2], [146, 2, 4, 1.07], [141, 2, 4, 0.39], [12224, 1, 4, 0.46], [3891, 1, 4, 0.2], [362, 2, 4, 0.52], [206, 2, 4, 0.37], [2055, 3, 4, 0.56], [75, 2, 4, 1.24], [5208, 3, 4, 0.46], [3889, 1, 5, 0.25], [7886, 4, 5, 0.44], [10993, 2, 4, 0.6], [11234, 2, 5, 0.75], [2054, 3, 4, 1.0], [7005, 1, 4, 0.58], [12870, 1, 4, 1.68], [7084, 3, 4, 1.07], [3980, 4, 5, 1.21], [10149, 3, 13, 1.21], [145, 2, 4, 1.0], [2050, 3, 4, 0.56], [2912, 1, 4, 0.77], [5165, 1, 4, 1.02], [8672, 2, 4, 1.19], [20927, 1, 4, 1.26], [998, 2, 4, 0.31], [9760, 29, 4, 0.2], [972, 3, 5, 0.51], [3, 2, 4, 0.62], [3495, 3, 11, 0.92], [229, 1, 4, 0.49], [6158, 2, 5, 2.11], [346, 3, 5, 0.21], [5076, 1, 4, 0.47], [5165, 2, 5, 2.06], [142, 2, 4, 0.36], [7887, 4, 4, 0.97], [523, 2, 4, 0.36], [74, 1, 4, 0.99], [9372, 1, 4, 0.59], [11953, 1, 4, 0.2], [11770, 1, 4, 0.2], [1492, 1, 4, 0.2], [12721, 2, 5, 0.96], [9491, 21, 12, 0.22], [3981, 3, 11, 0.23], [2912, 2, 7, 1.61], [2423, 80, 4, 1.97], [11772, 1, 4, 0.46], [6497, 1, 4, 0.41], [5434, 1, 4, 0.83], [7573, 1, 9, 1.95], [5584, 3, 4, 2.8], [12229, 2, 4, 0.49], [2438, 2, 5, 1.64], [346, 1, 4, 0.43], [335, 3, 9, 0.4], [10388, 2, 4, 1.05], [10407, 10, 7, 1.19], [11179, 1, 4, 0.27], [823, 1, 4, 0.44], [3975, 4, 4, 1.26], [6496, 1, 4, 0.37], [5209, 3, 5, 0.46], [2805, 137, 4, 1.33], [4253, 1, 4, 0.54], [11812, 1, 4, 0.2], [3900, 3, 4, 1.81], [12764, 2, 6, 0.23], [1622, 1, 4, 0.45], [1703, 2, 4, 0.83], [11490, 1, 4, 0.46], [8676, 2, 4, 0.97], [972, 1, 4, 1.01], [13893, 2, 4, 1.17], [22247, 2, 4, 1.64], [412, 1, 4, 0.64], [6097, 80, 4, 0.76], [2991, 3, 4, 1.37], [10386, 2, 4, 1.79], [11814, 1, 4, 0.48], [7567, 3, 4, 1.08], [6805, 1, 4, 0.51], [10410, 10, 9, 1.31], [8635, 3, 4, 0.87], [1274, 1, 4, 0.48], [37, 1, 4, 1.04], [788, 2, 4, 0.47], [8283, 2, 5, 0.68], [10408, 10, 5, 1.84], [389, 4, 4, 1.46], [8104, 1, 4, 1.09], [12212, 29, 4, 0.47], [35, 1, 4, 1.04], [23611, 3, 5, 0.42], [114, 3, 4, 1.03], [1895, 3, 4, 1.24], [76, 2, 4, 0.47], [95, 3, 12, 0.42], [38, 1, 4, 0.66], [12979, 25, 7, 0.71], [3979, 3, 8, 0.42], [10385, 2, 4, 0.52], [12501, 1, 4, 1.24], [220, 4, 4, 0.44], [8274, 3, 4, 0.87], [4232, 80, 4, 1.82], [24257, 1, 4, 0.48], [5435, 1, 4, 0.69], [9690, 1, 4, 0.47], [8659, 1, 4, 0.41], [440, 3, 4, 0.75], [88, 10, 467, 4.23], [8915, 2, 188, 2.44], [589, 2, 127, 3.01], [2327, 2, 125, 3.09], [2778, 2, 131, 3.06], [6935, 2, 232, 6.0], [2328, 2, 125, 3.53], [5493, 2, 107, 2.48], [305, 2, 122, 2.96], [615, 2, 72, 5.14], [6936, 2, 232, 5.4], [8650, 2, 186, 5.54], [8648, 2, 186, 5.21], [1446, 2, 50, 3.79], [2049, 3, 181, 2.85], [593, 2, 189, 3.07], [143, 2, 123, 3.44], [205, 2, 89, 2.31], [10, 2, 29, 4.53], [144, 2, 123, 3.56], [7036, 1, 107, 5.16], [94, 4, 100, 4.24], [3893, 1, 104, 2.85], [146, 2, 125, 3.69], [141, 2, 130, 2.86], [12224, 1, 109, 2.36], [3891, 1, 104, 2.9], [362, 2, 118, 3.09], [206, 2, 36, 1.72], [2055, 3, 158, 2.07], [75, 2, 143, 4.02], [3889, 1, 104, 3.51], [11234, 2, 152, 4.44], [7005, 1, 23, 3.47], [12870, 1, 114, 5.33], [7084, 3, 109, 3.69], [3980, 4, 473, 4.02], [10149, 3, 735, 4.24], [145, 2, 125, 3.56], [2050, 3, 158, 2.07], [2912, 1, 50, 3.46], [5165, 1, 49, 4.13], [8672, 2, 234, 5.75], [998, 2, 198, 3.64], [9760, 29, 60, 3.37], [972, 3, 493, 3.68], [3, 2, 119, 3.46], [3495, 3, 795, 3.74], [229, 1, 70, 3.03], [6158, 2, 211, 6.0], [346, 3, 525, 2.95], [5076, 1, 108, 3.0], [5165, 2, 314, 5.26], [142, 2, 129, 2.79], [523, 2, 129, 2.79], [74, 1, 192, 4.96], [9372, 1, 226, 4.71], [11953, 1, 165, 3.14], [11770, 1, 181, 3.35], [1492, 1, 31, 3.11], [12721, 2, 233, 4.06], [9491, 21, 1763, 3.05]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 5, 1.34], [615, 2, 4, 0.37], [305, 2, 4, 0.51], [2778, 2, 5, 0.2], [6936, 2, 5, 1.35], [205, 2, 4, 0.51], [130, 1, 4, 0.2], [144, 2, 4, 0.47], [8648, 2, 4, 0.96], [2049, 3, 8, 0.41], [88, 10, 10, 0.19], [7036, 1, 4, 1.23], [326, 2, 4, 0.7], [589, 2, 5, 0.2], [8650, 2, 5, 0.96], [593, 2, 4, 0.52], [11681, 2, 5, 1.37], [2327, 2, 5, 0.54], [3893, 1, 4, 0.2], [141, 2, 4, 0.53], [151, 1, 4, 0.9], [9507, 3, 4, 0.2], [11685, 2, 4, 1.37], [248, 1, 4, 0.41], [146, 2, 4, 1.07], [2050, 3, 5, 1.69], [2055, 3, 4, 1.73], [143, 2, 4, 0.51], [3980, 4, 5, 1.2], [2054, 3, 5, 1.86], [8672, 2, 4, 0.73], [7885, 4, 4, 0.4], [362, 2, 4, 0.2], [12870, 1, 4, 0.92], [2057, 3, 4, 1.78], [7886, 4, 5, 0.4], [13028, 3, 4, 0.62], [145, 2, 4, 1.03], [7084, 3, 4, 0.28], [3495, 3, 13, 0.92], [523, 2, 4, 0.53], [3975, 4, 4, 1.26], [2991, 3, 5, 1.1], [10149, 3, 13, 1.48], [9760, 29, 4, 0.2], [11404, 2, 4, 0.2], [20927, 1, 4, 1.17], [142, 2, 4, 0.52], [3982, 3, 11, 1.18], [3981, 3, 15, 1.15], [6158, 2, 5, 0.68], [417, 2, 4, 0.55], [214, 3, 9, 0.4], [2912, 1, 4, 1.58], [11953, 1, 4, 0.47], [997, 2, 4, 1.68], [22316, 3, 4, 0.51], [33, 1, 4, 1.83], [229, 1, 4, 0.7], [7887, 4, 5, 0.95], [6497, 1, 4, 1.31], [1492, 1, 5, 0.46], [346, 3, 4, 0.46], [998, 2, 4, 1.17], [972, 3, 4, 1.51], [996, 2, 5, 1.47], [35, 1, 4, 1.83], [389, 4, 5, 0.88], [410, 1, 5, 0.4], [11770, 1, 4, 0.2], [2912, 2, 5, 1.26], [336, 15, 4, 0.37], [7567, 3, 4, 1.47], [74, 1, 4, 0.62], [2104, 3, 6, 0.4], [1413, 15, 4, 0.53], [6496, 1, 4, 0.55], [12721, 2, 4, 0.97], [12212, 29, 4, 0.45], [22317, 3, 5, 0.51], [4176, 4, 4, 1.31], [8673, 2, 4, 2.14], [8677, 3, 4, 0.9], [8676, 2, 4, 0.73], [11085, 2, 5, 1.27], [37, 1, 4, 0.66], [1274, 1, 4, 0.53], [21269, 3, 4, 2.99], [22247, 2, 4, 1.64], [7573, 1, 5, 0.97], [13023, 3, 4, 1.26], [9372, 1, 4, 2.31], [39, 1, 4, 0.51], [823, 1, 4, 0.48], [10388, 2, 4, 1.14], [6494, 1, 4, 0.45], [345, 3, 4, 0.51], [201, 3, 4, 0.51], [12271, 2, 4, 0.7], [10936, 2, 4, 1.7], [96, 11, 13, 1.09], [10408, 10, 5, 1.64], [3577, 25, 4, 0.59], [12225, 1, 4, 0.84], [3, 2, 4, 0.96], [10631, 2, 4, 1.98], [2805, 137, 5, 0.47], [11812, 1, 4, 0.46], [9691, 1, 4, 0.75], [1490, 1, 4, 1.08], [1414, 15, 4, 0.53], [20498, 3, 5, 0.99], [23961, 3, 4, 1.48], [36, 1, 4, 0.66], [192, 3, 9, 1.01], [9690, 1, 4, 1.09], [12764, 2, 5, 0.84], [10386, 2, 4, 0.99], [13928, 1, 4, 0.55], [346, 1, 4, 0.55], [3048, 3, 4, 0.92], [8898, 3, 4, 0.71], [10407, 10, 6, 1.35], [3576, 25, 4, 0.75], [11814, 1, 4, 0.48], [13893, 2, 4, 1.13], [11089, 1, 4, 0.44], [972, 1, 4, 0.5], [1339, 3, 9, 0.42], [5812, 3, 4, 0.51], [10939, 2, 4, 1.93], [1523, 1, 4, 0.8], [1163, 3, 4, 0.59], [491, 10, 5, 1.18], [13035, 3, 4, 1.32], [19931, 1, 4, 1.26], [2878, 1, 4, 0.39], [8659, 1, 4, 1.01], [6935, 2, 208, 4.76], [615, 2, 99, 2.62], [305, 2, 108, 2.88], [2778, 2, 115, 3.01], [6936, 2, 208, 5.14], [205, 2, 80, 2.88], [144, 2, 111, 2.81], [8648, 2, 165, 4.65], [2049, 3, 406, 2.82], [88, 10, 424, 2.78], [7036, 1, 93, 4.22], [589, 2, 113, 2.55], [8650, 2, 165, 4.42], [593, 2, 167, 3.17], [11681, 2, 200, 5.29], [2327, 2, 111, 2.93], [3893, 1, 114, 2.19], [141, 2, 114, 3.53], [11685, 2, 200, 5.3], [248, 1, 19, 1.69], [146, 2, 111, 3.51], [2050, 3, 336, 5.27], [2055, 3, 336, 5.36], [143, 2, 109, 2.89], [3980, 4, 353, 4.3], [2054, 3, 336, 5.61], [8672, 2, 210, 4.63], [362, 2, 104, 2.86], [12870, 1, 100, 5.66], [2057, 3, 336, 5.47], [13028, 3, 127, 2.69], [145, 2, 111, 3.43], [7084, 3, 96, 3.38], [3495, 3, 836, 3.08], [523, 2, 114, 3.0], [3975, 4, 353, 4.43], [2991, 3, 119, 6.0], [10149, 3, 755, 4.09], [9760, 29, 53, 2.81], [11404, 2, 73, 2.67], [20927, 1, 27, 3.72], [142, 2, 114, 2.89], [3982, 3, 578, 4.3], [3981, 3, 1179, 3.95], [6158, 2, 183, 3.19], [417, 2, 114, 2.95], [214, 3, 228, 1.63], [2912, 1, 41, 4.55], [11953, 1, 176, 2.34], [997, 2, 83, 6.0], [22316, 3, 274, 2.42], [229, 1, 72, 2.8], [6497, 1, 13, 4.36], [1492, 1, 13, 3.71], [346, 3, 537, 2.34], [996, 2, 165, 5.53], [389, 4, 153, 3.71], [11770, 1, 160, 2.79], [2912, 2, 284, 4.23], [336, 15, 93, 2.72], [74, 1, 148, 3.75], [1413, 15, 35, 2.02]]</t>
+  </si>
+  <si>
+    <t>[[141, 2, 4, 0.2], [2328, 2, 4, 0.2], [8650, 2, 4, 0.96], [5491, 2, 4, 0.2], [362, 2, 4, 0.2], [130, 1, 4, 0.45], [589, 2, 5, 0.52], [2327, 2, 5, 0.51], [326, 2, 4, 1.12], [8672, 2, 5, 0.91], [417, 2, 4, 0.2], [6935, 2, 8, 1.31], [206, 2, 4, 0.2], [6936, 2, 4, 1.09], [142, 2, 4, 0.2], [8915, 2, 5, 0.2], [11838, 2, 5, 0.2], [12721, 2, 5, 0.48], [2049, 3, 9, 0.39], [1446, 2, 4, 0.44], [2778, 2, 5, 0.47], [523, 2, 4, 0.66], [8676, 2, 4, 0.52], [305, 2, 4, 0.98], [411, 2, 4, 0.43], [10574, 3, 6, 1.26], [12349, 1, 4, 0.53], [145, 2, 5, 0.49], [8675, 2, 5, 1.23], [990, 2, 5, 0.4], [76, 2, 4, 0.84], [143, 2, 4, 0.48], [8673, 2, 4, 0.97], [11836, 2, 4, 0.2], [146, 2, 4, 0.51], [6158, 2, 6, 0.83], [151, 1, 4, 0.4], [3495, 3, 13, 0.98], [2050, 3, 5, 0.34], [10149, 3, 13, 1.38], [2055, 3, 4, 0.41], [12350, 1, 4, 0.53], [2054, 3, 5, 0.51], [75, 2, 4, 1.67], [144, 2, 4, 0.5], [7885, 4, 5, 0.44], [2859, 15, 4, 0.35], [88, 10, 8, 0.95], [10993, 2, 5, 0.2], [3848, 2, 4, 1.07], [7705, 2, 4, 1.15], [2423, 80, 4, 1.96], [2424, 29, 4, 1.0], [2423, 29, 4, 0.52], [12351, 1, 4, 0.44], [2424, 80, 4, 2.32], [60, 3, 5, 1.93], [1519, 3, 10, 0.39], [201, 3, 4, 1.01], [1414, 15, 4, 0.35], [12373, 1, 5, 0.45], [345, 3, 4, 1.04], [5208, 3, 8, 0.48], [6952, 1, 4, 0.45], [20927, 1, 4, 0.98], [11954, 1, 4, 0.44], [432, 3, 5, 2.04], [3, 2, 4, 1.52], [3430, 15, 4, 1.08], [7004, 1, 4, 1.02], [7886, 4, 5, 0.44], [11811, 1, 4, 0.38], [2703, 3, 4, 1.65], [13928, 1, 4, 0.2], [2331, 1, 4, 0.6], [114, 3, 4, 0.41], [3429, 15, 4, 0.49], [11089, 1, 4, 0.43], [105, 3, 4, 0.41], [5584, 3, 4, 2.72], [3981, 3, 8, 0.51], [944, 15, 4, 0.4], [308, 1, 5, 0.99], [7706, 2, 4, 1.05], [10407, 10, 6, 1.31], [8274, 3, 4, 2.02], [1886, 2, 4, 0.35], [1490, 1, 4, 0.79], [10410, 10, 6, 1.9], [22317, 3, 6, 0.2], [94, 4, 4, 0.79], [3891, 1, 4, 0.74], [3893, 1, 4, 0.94], [8898, 3, 4, 1.99], [9690, 1, 4, 0.91], [9082, 3, 15, 0.83], [7708, 2, 4, 1.05], [3028, 3, 4, 0.43], [6497, 1, 4, 0.44], [9342, 2, 5, 0.49], [10409, 10, 6, 1.67], [10406, 10, 7, 1.73], [1274, 1, 4, 1.24], [952, 4, 4, 2.22], [20196, 2, 4, 0.72], [823, 1, 4, 1.8], [21003, 2, 4, 0.72], [10897, 1, 8, 0.47], [10408, 10, 6, 1.66], [20682, 1, 4, 1.05], [10398, 2, 4, 1.72], [5812, 3, 4, 1.51], [5946, 1, 4, 1.47], [13928, 2, 4, 0.55], [11677, 1, 4, 1.16], [4253, 1, 4, 0.73], [957, 2, 4, 0.48], [6630, 3, 4, 1.81], [7703, 2, 4, 1.05], [186, 3, 7, 0.52], [20680, 1, 4, 0.69], [95, 3, 8, 0.72], [963, 3, 4, 0.93], [20555, 2, 4, 0.44], [8635, 3, 4, 2.02], [2438, 2, 5, 1.36], [2805, 137, 5, 2.77], [1050, 2, 4, 0.36], [8897, 3, 4, 1.97], [3478, 2, 4, 1.28], [3980, 4, 4, 1.26], [3889, 1, 4, 0.94], [11603, 2, 4, 1.5], [9068, 1, 4, 1.56], [5811, 3, 5, 1.81], [9, 1, 4, 0.39], [11812, 1, 4, 0.46], [9491, 21, 10, 1.24], [141, 2, 133, 3.16], [2328, 2, 128, 4.14], [8650, 2, 192, 4.6], [5491, 2, 92, 3.39], [362, 2, 122, 3.23], [589, 2, 51, 3.23], [2327, 2, 128, 4.11], [8672, 2, 244, 4.19], [417, 2, 133, 3.16], [6935, 2, 240, 6.0], [6936, 2, 240, 4.86], [142, 2, 133, 3.33], [11838, 2, 227, 3.3], [12721, 2, 241, 3.74], [2049, 3, 276, 2.99], [1446, 2, 52, 1.92], [2778, 2, 159, 3.12], [523, 2, 79, 3.51], [8676, 2, 289, 2.78], [305, 2, 74, 3.31], [411, 2, 37, 1.9], [10574, 3, 425, 4.77], [12349, 1, 626, 2.79], [145, 2, 128, 3.91], [8675, 2, 244, 4.22], [76, 2, 110, 3.4], [143, 2, 149, 2.7], [8673, 2, 287, 4.69], [11836, 2, 227, 3.14], [146, 2, 151, 4.46], [6158, 2, 221, 4.94], [151, 1, 56, 2.56], [3495, 3, 816, 4.03], [2050, 3, 410, 2.42], [10149, 3, 760, 4.24], [12350, 1, 626, 2.79], [2054, 3, 161, 2.47], [75, 2, 122, 4.99], [144, 2, 50, 3.7], [2859, 15, 69, 3.38], [88, 10, 563, 3.87], [3848, 2, 168, 3.84], [7705, 2, 149, 4.56], [2423, 80, 123, 6.0], [2424, 29, 29, 6.0], [2423, 29, 37, 3.28], [12351, 1, 626, 2.62], [2424, 80, 167, 6.0], [60, 3, 536, 5.12], [1519, 3, 1416, 2.82], [201, 3, 253, 4.95], [1414, 15, 100, 2.45], [12373, 1, 535, 4.76], [345, 3, 302, 3.77], [5208, 3, 190, 1.94], [6952, 1, 191, 2.75], [11954, 1, 202, 2.63], [432, 3, 101, 6.0], [3, 2, 120, 4.71], [3430, 15, 69, 3.86], [7886, 4, 48, 2.73], [11811, 1, 453, 3.71]]</t>
+  </si>
+  <si>
+    <t>[[2778, 2, 5, 0.2], [6935, 2, 7, 1.8], [6936, 2, 4, 1.17], [305, 2, 4, 0.48], [8672, 2, 5, 0.91], [615, 2, 4, 0.2], [1504, 2, 5, 0.58], [145, 2, 5, 0.49], [12721, 2, 5, 0.72], [2327, 2, 4, 0.2], [146, 2, 5, 0.62], [143, 2, 4, 1.01], [2328, 2, 4, 0.51], [11737, 2, 4, 0.54], [141, 2, 4, 0.55], [5491, 2, 4, 0.2], [205, 2, 5, 0.37], [144, 2, 5, 0.53], [8650, 2, 4, 1.53], [8676, 2, 4, 0.6], [8673, 2, 5, 0.73], [417, 2, 4, 0.47], [589, 2, 5, 0.2], [3, 2, 4, 0.66], [206, 2, 4, 0.2], [22247, 2, 4, 1.21], [6097, 80, 5, 1.86], [6497, 1, 4, 0.2], [11836, 2, 5, 0.2], [2055, 3, 4, 0.46], [990, 2, 4, 0.27], [12344, 1, 5, 0.7], [523, 2, 4, 0.66], [593, 2, 5, 0.2], [6097, 29, 4, 2.36], [6098, 80, 4, 2.59], [12345, 1, 4, 2.03], [11739, 2, 4, 0.54], [88, 10, 8, 0.19], [2054, 3, 4, 0.62], [8915, 2, 4, 0.41], [75, 2, 4, 0.47], [326, 2, 4, 0.41], [60, 3, 6, 0.85], [1492, 1, 4, 0.72], [1413, 15, 5, 0.2], [411, 2, 4, 0.37], [1050, 2, 4, 0.38], [6496, 1, 4, 1.05], [6098, 29, 4, 2.59], [947, 15, 4, 0.44], [7704, 2, 4, 1.05], [10149, 3, 13, 1.48], [345, 3, 4, 0.76], [2859, 15, 4, 0.47], [11738, 2, 4, 0.54], [1243, 2, 4, 1.11], [13264, 29, 4, 0.52], [1049, 2, 4, 0.38], [1490, 1, 4, 0.36], [229, 1, 4, 2.07], [964, 15, 4, 0.4], [7004, 1, 4, 0.81], [201, 3, 5, 0.51], [2331, 1, 4, 0.52], [10407, 10, 6, 1.31], [186, 3, 7, 0.67], [5208, 3, 8, 0.54], [22558, 3, 5, 0.2], [114, 3, 4, 1.12], [432, 3, 4, 2.04], [1163, 3, 4, 1.45], [7705, 2, 4, 1.05], [957, 2, 5, 0.51], [7706, 2, 4, 1.05], [12229, 2, 4, 0.45], [13928, 1, 4, 0.55], [2421, 80, 4, 1.08], [3478, 2, 4, 1.28], [11404, 2, 4, 0.43], [10408, 10, 6, 1.66], [10406, 10, 7, 1.73], [7036, 1, 4, 0.43], [19687, 1, 4, 0.7], [11687, 2, 4, 0.5], [10410, 10, 6, 1.9], [12870, 1, 4, 0.94], [11490, 1, 4, 0.55], [1886, 2, 4, 0.35], [9784, 1, 4, 1.01], [410, 1, 4, 0.61], [11159, 1, 7, 0.84], [22125, 2, 4, 0.36], [2703, 3, 4, 1.65], [21781, 2, 4, 0.47], [11161, 1, 5, 1.22], [9760, 29, 4, 0.85], [956, 2, 4, 0.53], [7708, 2, 4, 1.05], [12373, 1, 5, 0.45], [9065, 2, 4, 0.48], [5976, 1, 4, 1.98], [94, 4, 4, 0.6], [11689, 2, 4, 0.47], [105, 3, 4, 0.83], [8599, 1, 4, 0.39], [1274, 1, 4, 1.91], [2805, 137, 5, 0.52], [9372, 1, 4, 1.74], [9209, 29, 4, 0.54], [11953, 1, 4, 0.47], [5584, 3, 4, 2.72], [11811, 1, 4, 0.38], [4253, 1, 4, 0.73], [11160, 1, 4, 1.31], [8600, 1, 4, 0.98], [3495, 3, 13, 0.85], [247, 1, 4, 0.8], [2991, 3, 4, 2.31], [8283, 2, 5, 0.36], [21269, 3, 4, 1.6], [12764, 2, 5, 0.84], [20927, 1, 4, 0.7], [8285, 2, 5, 0.49], [11887, 2, 5, 0.57], [1691, 1, 4, 1.33], [20555, 2, 4, 0.47], [9491, 21, 10, 1.69], [5076, 1, 4, 1.12], [11677, 1, 4, 1.16], [4372, 1, 4, 0.5], [3934, 5, 5, 0.56], [12304, 1, 4, 1.36], [8635, 3, 4, 0.87], [12979, 25, 9, 0.71], [13198, 29, 4, 1.27], [3230, 1, 4, 0.43], [2778, 2, 156, 2.86], [6935, 2, 237, 6.0], [6936, 2, 284, 4.68], [305, 2, 125, 3.24], [8672, 2, 244, 4.19], [615, 2, 107, 3.51], [1504, 2, 173, 3.63], [145, 2, 128, 3.19], [12721, 2, 240, 3.97], [2327, 2, 128, 4.11], [146, 2, 128, 3.92], [143, 2, 126, 3.72], [2328, 2, 128, 4.14], [11737, 2, 19, 2.58], [141, 2, 104, 3.85], [5491, 2, 92, 3.31], [205, 2, 37, 3.03], [144, 2, 101, 3.71], [8650, 2, 191, 6.0], [8676, 2, 244, 3.38], [8673, 2, 244, 5.23], [417, 2, 78, 3.67], [3, 2, 103, 3.49], [206, 2, 37, 3.03], [22247, 2, 240, 4.52], [6097, 80, 57, 5.71], [6497, 1, 33, 3.13], [11836, 2, 227, 3.22], [2055, 3, 410, 2.78], [990, 2, 29, 3.34], [12344, 1, 522, 3.81], [523, 2, 133, 3.51], [593, 2, 154, 3.17], [6097, 29, 29, 6.0], [12345, 1, 613, 5.7], [11739, 2, 58, 2.82], [88, 10, 477, 4.8], [2054, 3, 241, 2.61], [8915, 2, 65, 1.86], [75, 2, 145, 2.68], [326, 2, 92, 2.63], [60, 3, 692, 3.78], [1492, 1, 37, 3.17], [411, 2, 73, 3.03], [6496, 1, 40, 3.85], [947, 15, 42, 2.63], [7704, 2, 178, 4.4], [10149, 3, 876, 4.41], [345, 3, 301, 3.99], [2859, 15, 69, 3.48], [11738, 2, 38, 2.94], [1243, 2, 100, 3.92], [13264, 29, 73, 2.78], [1490, 1, 44, 2.94], [229, 1, 82, 5.76], [7004, 1, 27, 2.63], [201, 3, 201, 4.91], [2331, 1, 119, 2.78], [10407, 10, 1171, 5.03], [186, 3, 664, 3.3], [5208, 3, 377, 2.58], [22558, 3, 408, 3.51], [114, 3, 122, 4.04]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 5, 0.91], [141, 2, 4, 0.48], [361, 2, 5, 0.59], [6935, 2, 7, 1.55], [12721, 2, 6, 1.21], [206, 2, 4, 0.2], [2049, 3, 10, 0.21], [8676, 2, 5, 0.6], [8675, 2, 5, 0.73], [1504, 2, 5, 0.2], [417, 2, 4, 0.47], [3, 2, 5, 0.61], [6936, 2, 4, 1.33], [305, 2, 5, 0.48], [22247, 2, 5, 1.0], [523, 2, 4, 0.66], [8650, 2, 4, 1.27], [8648, 2, 4, 0.88], [2328, 2, 4, 0.64], [2776, 2, 5, 0.2], [11739, 2, 4, 0.68], [2327, 2, 4, 0.64], [11837, 2, 4, 0.45], [12352, 1, 4, 2.07], [411, 2, 4, 0.38], [589, 2, 4, 0.2], [143, 2, 4, 0.7], [146, 2, 4, 1.12], [11835, 2, 4, 0.49], [6497, 1, 5, 0.2], [583, 2, 4, 1.16], [6097, 80, 4, 2.11], [326, 2, 4, 0.41], [10574, 3, 5, 1.75], [145, 2, 4, 0.57], [144, 2, 4, 0.57], [10149, 3, 13, 0.39], [11836, 2, 4, 0.54], [6097, 29, 4, 0.66], [75, 2, 5, 0.49], [12344, 1, 4, 1.35], [1413, 15, 4, 0.46], [6496, 1, 5, 0.2], [1243, 2, 4, 0.73], [6098, 80, 4, 2.59], [8915, 2, 5, 0.2], [1886, 2, 5, 0.2], [247, 1, 4, 2.06], [6098, 29, 4, 0.83], [944, 15, 4, 0.2], [1490, 1, 4, 0.47], [2859, 15, 4, 0.71], [3934, 5, 6, 0.2], [2049, 1, 4, 0.2], [201, 3, 4, 0.44], [6158, 2, 5, 1.77], [3478, 2, 4, 1.28], [12350, 1, 4, 2.03], [11489, 1, 4, 0.72], [13928, 1, 4, 0.55], [7084, 3, 4, 2.46], [1703, 2, 4, 0.75], [8599, 1, 4, 0.37], [9342, 2, 5, 0.49], [4253, 1, 4, 0.73], [3982, 3, 12, 0.36], [308, 1, 5, 0.79], [186, 3, 7, 0.52], [11887, 2, 5, 0.57], [11885, 2, 4, 0.51], [94, 4, 4, 0.48], [2438, 2, 5, 1.36], [11811, 1, 4, 0.38], [11490, 1, 4, 0.48], [1050, 2, 4, 0.36], [10398, 2, 4, 0.37], [5812, 3, 4, 2.0], [229, 1, 4, 1.18], [2821, 3, 8, 0.5], [4232, 80, 4, 0.69], [5939, 3, 4, 0.59], [11671, 1, 4, 0.42], [5813, 3, 5, 2.0], [3495, 3, 13, 0.85], [5811, 3, 6, 0.98], [8898, 3, 4, 3.26], [12764, 2, 5, 0.84], [3980, 4, 4, 1.26], [7036, 1, 4, 0.43], [2108, 3, 6, 0.54], [1049, 2, 4, 0.36], [105, 3, 4, 0.94], [13928, 2, 4, 0.55], [9690, 1, 4, 0.99], [5584, 3, 4, 2.72], [8274, 3, 4, 2.02], [22573, 2, 4, 0.99], [3981, 3, 8, 0.51], [1523, 1, 4, 0.72], [11886, 2, 4, 0.75], [10407, 10, 6, 1.31], [192, 3, 7, 1.24], [1277, 1, 4, 0.47], [8897, 3, 4, 3.26], [10124, 1, 4, 2.17], [2991, 3, 4, 1.5], [10406, 10, 7, 1.73], [20927, 1, 4, 0.64], [10147, 1, 4, 0.37], [11677, 1, 4, 1.16], [3334, 5, 4, 0.46], [2438, 1, 4, 1.31], [8635, 3, 4, 2.02], [11678, 1, 4, 1.62], [1701, 2, 4, 0.55], [23275, 2, 4, 0.99], [7004, 1, 4, 0.74], [4001, 3, 6, 0.53], [23031, 3, 4, 1.37], [9373, 5, 4, 4.0], [1274, 1, 4, 1.97], [10516, 3, 5, 0.86], [5976, 1, 4, 1.98], [10181, 26, 5, 0.53], [3984, 3, 5, 0.51], [9065, 2, 4, 0.48], [14041, 3, 4, 0.45], [8285, 2, 5, 0.49], [973, 3, 5, 0.65], [7005, 1, 4, 0.74], [19924, 2, 4, 0.95], [9069, 1, 4, 1.09], [10409, 10, 6, 1.67], [11812, 1, 4, 0.46], [1648, 1, 4, 1.04], [8188, 10, 6, 0.86], [12241, 3, 4, 0.38], [942, 3, 4, 0.75], [8672, 2, 244, 4.19], [141, 2, 133, 3.16], [361, 2, 133, 3.37], [6935, 2, 238, 6.0], [12721, 2, 242, 5.08], [2049, 3, 186, 2.87], [8676, 2, 244, 3.38], [8675, 2, 244, 3.67], [1504, 2, 174, 3.23], [417, 2, 133, 3.16], [3, 2, 103, 3.41], [6936, 2, 238, 5.42], [305, 2, 125, 3.17], [22247, 2, 242, 4.11], [523, 2, 133, 3.51], [8650, 2, 192, 4.43], [8648, 2, 192, 4.3], [2328, 2, 152, 3.55], [2776, 2, 134, 3.17], [11739, 2, 19, 2.38], [2327, 2, 152, 3.26], [11837, 2, 269, 2.65], [12352, 1, 522, 5.76], [411, 2, 37, 2.98], [143, 2, 149, 3.13], [146, 2, 128, 3.94], [11835, 2, 269, 2.72], [6497, 1, 33, 3.13], [6097, 80, 56, 5.84], [326, 2, 92, 2.63], [10574, 3, 425, 5.26], [145, 2, 50, 3.88], [10149, 3, 760, 3.82], [11836, 2, 269, 2.82], [6097, 29, 34, 3.05], [75, 2, 123, 4.17], [12344, 1, 613, 4.37], [1413, 15, 100, 2.67], [6496, 1, 35, 3.85], [1243, 2, 101, 3.19], [1886, 2, 133, 3.21], [247, 1, 87, 5.75], [6098, 29, 38, 3.99], [944, 15, 15, 3.15], [1490, 1, 51, 2.68], [2859, 15, 59, 3.59], [3934, 5, 496, 3.22], [2049, 1, 36, 2.86], [201, 3, 307, 2.63], [12350, 1, 613, 5.7], [13928, 1, 47, 4.68], [1703, 2, 139, 3.82], [8599, 1, 146, 3.14], [9342, 2, 156, 1.93], [4253, 1, 173, 3.19], [3982, 3, 821, 2.44], [308, 1, 174, 3.69], [186, 3, 668, 2.76], [11887, 2, 193, 2.78], [11885, 2, 193, 2.76], [94, 4, 124, 2.7], [2438, 2, 629, 5.11]]</t>
+  </si>
+  <si>
+    <t>[[305, 2, 4, 0.2], [6935, 2, 7, 0.97], [2328, 2, 4, 0.2], [130, 1, 4, 0.2], [141, 2, 5, 0.48], [8650, 2, 4, 0.46], [8672, 2, 6, 0.2], [2327, 2, 4, 0.2], [362, 2, 4, 1.09], [6936, 2, 4, 1.26], [143, 2, 5, 0.51], [145, 2, 4, 0.5], [248, 1, 4, 0.36], [205, 2, 4, 0.37], [5493, 2, 4, 0.85], [417, 2, 4, 0.54], [146, 2, 4, 0.57], [75, 2, 5, 0.97], [11737, 2, 4, 0.58], [1124, 2, 6, 0.32], [523, 2, 5, 0.2], [2049, 3, 10, 0.21], [12721, 2, 5, 0.48], [1005, 2, 4, 0.2], [8853, 2, 4, 1.46], [206, 2, 4, 0.37], [326, 2, 5, 0.85], [8673, 2, 5, 0.2], [8915, 2, 5, 0.89], [144, 2, 4, 0.46], [11835, 2, 4, 0.36], [11739, 2, 5, 1.39], [88, 10, 8, 0.19], [434, 2, 5, 0.55], [142, 2, 5, 0.2], [151, 1, 4, 1.01], [435, 2, 4, 0.53], [8676, 2, 5, 0.7], [11234, 2, 4, 0.63], [6158, 2, 5, 0.2], [11738, 2, 4, 0.58], [11836, 2, 4, 0.47], [1413, 15, 4, 0.2], [7705, 2, 4, 1.65], [10574, 3, 6, 1.26], [944, 15, 4, 0.4], [7706, 2, 4, 1.65], [3, 2, 4, 1.04], [2054, 3, 4, 0.65], [2859, 15, 4, 1.37], [12720, 2, 4, 0.98], [74, 1, 4, 1.69], [3478, 2, 4, 1.78], [2055, 3, 4, 0.46], [10149, 3, 13, 0.75], [3429, 15, 4, 0.45], [6497, 1, 4, 0.44], [7004, 1, 4, 1.06], [60, 3, 5, 1.7], [411, 2, 4, 0.37], [11089, 1, 4, 0.41], [13928, 1, 4, 0.55], [2057, 3, 4, 0.65], [13028, 3, 4, 0.37], [7036, 1, 4, 0.43], [18964, 1, 4, 0.2], [6097, 80, 5, 3.8], [13260, 29, 4, 1.17], [8274, 3, 4, 0.58], [3893, 1, 5, 2.08], [13034, 3, 5, 1.15], [14037, 3, 4, 0.96], [94, 4, 5, 1.77], [6952, 1, 4, 1.59], [3891, 1, 4, 1.26], [1050, 2, 4, 0.2], [7707, 2, 4, 0.75], [1243, 2, 4, 0.95], [21793, 1, 5, 1.44], [1490, 1, 4, 0.79], [3889, 1, 5, 2.08], [11490, 1, 4, 0.74], [22317, 3, 6, 0.2], [7708, 2, 4, 1.05], [345, 3, 4, 1.26], [6098, 80, 5, 2.21], [7703, 2, 4, 1.05], [229, 1, 4, 2.07], [3495, 3, 13, 0.85], [6630, 3, 4, 2.4], [2991, 3, 4, 2.17], [13023, 3, 6, 0.57], [336, 15, 4, 0.38], [2805, 137, 5, 0.48], [11581, 29, 4, 0.87], [6098, 29, 4, 0.83], [6627, 3, 4, 0.44], [23275, 2, 4, 0.99], [13033, 3, 4, 0.69], [2331, 1, 4, 0.64], [13263, 29, 4, 0.43], [1049, 2, 4, 0.36], [247, 1, 4, 1.62], [1274, 1, 4, 1.5], [8635, 3, 4, 0.61], [6628, 3, 4, 0.47], [6097, 29, 4, 0.59], [114, 3, 4, 1.23], [5940, 3, 4, 0.45], [12229, 2, 4, 0.45], [20555, 2, 4, 0.39], [942, 3, 4, 0.75], [6496, 1, 4, 1.05], [11914, 1, 4, 0.41], [10406, 10, 7, 1.73], [8898, 3, 4, 0.48], [9372, 1, 4, 1.74], [192, 3, 7, 1.24], [10411, 10, 6, 1.74], [215, 4, 4, 1.55], [21269, 3, 4, 0.5], [3934, 5, 5, 0.56], [9760, 29, 4, 1.46], [186, 3, 7, 1.23], [11770, 1, 4, 1.07], [10407, 10, 6, 1.31], [5209, 3, 5, 0.54], [12373, 1, 5, 0.45], [10527, 3, 8, 1.0], [10408, 10, 6, 1.66], [5812, 3, 4, 0.5], [6360, 10, 9, 0.83], [21781, 2, 4, 0.47], [4940, 1, 4, 0.37], [7005, 1, 4, 0.81], [9082, 3, 15, 0.83], [12870, 1, 4, 1.74], [1886, 2, 4, 0.44], [19687, 1, 4, 1.21], [305, 2, 146, 2.67], [6935, 2, 239, 6.0], [2328, 2, 128, 4.14], [141, 2, 133, 3.16], [8650, 2, 225, 4.1], [8672, 2, 244, 4.72], [2327, 2, 128, 4.11], [6936, 2, 239, 5.25], [143, 2, 126, 3.22], [145, 2, 129, 3.21], [205, 2, 37, 3.03], [5493, 2, 92, 3.84], [417, 2, 157, 2.82], [146, 2, 129, 3.32], [75, 2, 124, 4.07], [11737, 2, 19, 2.63], [1124, 2, 157, 4.02], [523, 2, 78, 3.51], [2049, 3, 186, 3.28], [12721, 2, 241, 3.74], [1005, 2, 90, 4.26], [8853, 2, 239, 5.16], [206, 2, 37, 3.03], [326, 2, 31, 4.01], [8673, 2, 245, 4.98], [144, 2, 129, 3.13], [11835, 2, 269, 2.47], [88, 10, 477, 4.8], [434, 2, 36, 3.57], [142, 2, 133, 3.33], [435, 2, 36, 3.26], [8676, 2, 244, 3.57], [11234, 2, 62, 2.63], [6158, 2, 222, 4.29], [11738, 2, 38, 2.99], [11836, 2, 227, 3.14], [1413, 15, 50, 3.27], [7705, 2, 148, 4.89], [10574, 3, 425, 4.78], [944, 15, 15, 1.84], [7706, 2, 148, 4.89], [3, 2, 102, 4.23], [12720, 2, 241, 3.74], [74, 1, 170, 6.0], [2055, 3, 408, 2.76], [10149, 3, 883, 3.28], [3429, 15, 27, 2.29], [6497, 1, 38, 2.63], [60, 3, 405, 4.38], [411, 2, 55, 3.03], [11089, 1, 148, 3.03], [13928, 1, 47, 4.68], [2057, 3, 481, 3.02], [13028, 3, 147, 3.74], [7036, 1, 129, 3.52], [18964, 1, 57, 2.59], [6097, 80, 23, 6.0], [13260, 29, 62, 4.03], [3893, 1, 41, 6.0], [13034, 3, 597, 4.06], [6952, 1, 160, 4.84]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 6, 0.87], [141, 2, 4, 0.2], [589, 2, 5, 0.2], [2778, 2, 4, 0.5], [6936, 2, 5, 0.44], [2327, 2, 4, 0.64], [362, 2, 4, 0.56], [8648, 2, 4, 1.58], [11681, 2, 10, 0.85], [8650, 2, 4, 1.58], [326, 2, 4, 0.47], [205, 2, 4, 0.46], [1446, 2, 4, 0.2], [2328, 2, 4, 0.39], [305, 2, 4, 1.0], [2049, 3, 5, 0.45], [130, 1, 4, 0.45], [2775, 2, 4, 0.5], [8853, 2, 5, 0.94], [361, 2, 4, 0.4], [593, 2, 5, 0.2], [143, 2, 4, 0.51], [1429, 2, 4, 0.2], [206, 2, 4, 0.2], [523, 2, 5, 0.54], [7004, 1, 4, 0.89], [12350, 1, 4, 0.19], [7036, 1, 4, 1.42], [1124, 2, 4, 0.29], [151, 1, 4, 0.37], [990, 2, 5, 0.28], [5165, 1, 4, 0.7], [417, 2, 4, 0.55], [248, 1, 4, 0.2], [144, 2, 4, 0.74], [2050, 3, 4, 1.21], [201, 3, 5, 0.92], [6952, 1, 4, 1.54], [6097, 80, 4, 2.38], [345, 3, 5, 0.42], [11770, 1, 4, 0.48], [2055, 3, 4, 1.21], [3891, 1, 4, 0.75], [7084, 3, 4, 2.67], [2057, 3, 4, 0.99], [9372, 1, 4, 0.98], [5165, 2, 7, 1.19], [7005, 1, 4, 0.56], [3893, 1, 5, 0.2], [998, 2, 4, 0.73], [12870, 1, 4, 0.47], [10574, 3, 5, 1.09], [3334, 5, 4, 1.49], [6097, 29, 4, 2.41], [7885, 4, 4, 0.49], [6098, 80, 4, 1.39], [20927, 1, 4, 0.86], [346, 3, 4, 0.21], [11089, 1, 4, 0.87], [12344, 1, 4, 0.53], [10149, 3, 15, 0.75], [6158, 2, 4, 1.34], [3889, 1, 4, 0.74], [1492, 1, 4, 0.2], [432, 3, 4, 0.62], [11953, 1, 4, 0.41], [1519, 3, 10, 0.39], [4032, 29, 4, 0.52], [411, 2, 4, 0.54], [2423, 80, 4, 2.47], [972, 3, 5, 1.01], [5151, 2, 4, 1.05], [13034, 3, 5, 0.81], [229, 1, 4, 2.07], [3576, 25, 4, 1.42], [2331, 1, 4, 0.5], [346, 1, 4, 0.2], [13244, 1, 4, 0.47], [11426, 25, 4, 0.59], [11737, 2, 4, 0.49], [11583, 29, 5, 0.2], [3, 2, 4, 0.82], [5076, 1, 4, 0.44], [2160, 68, 4, 1.02], [11490, 1, 4, 0.71], [2805, 137, 4, 0.68], [12764, 2, 5, 0.2], [6494, 1, 4, 1.48], [8677, 3, 5, 1.21], [13893, 2, 4, 1.01], [1701, 2, 4, 1.54], [3575, 25, 4, 0.6], [11814, 1, 4, 0.48], [3577, 25, 4, 0.37], [1413, 15, 4, 0.43], [3478, 2, 4, 0.62], [11813, 1, 4, 1.51], [23238, 29, 4, 0.37], [75, 2, 4, 0.81], [2438, 2, 5, 1.77], [13023, 3, 5, 1.01], [4253, 1, 4, 1.55], [4033, 29, 4, 0.49], [9289, 29, 4, 1.08], [8283, 2, 5, 0.74], [11404, 2, 4, 0.43], [5812, 3, 4, 2.0], [23238, 25, 4, 0.37], [9967, 2, 4, 0.92], [9069, 1, 4, 0.94], [9971, 2, 4, 0.92], [2878, 1, 4, 0.44], [5584, 3, 4, 1.38], [1163, 3, 4, 1.45], [957, 2, 4, 0.91], [9491, 21, 8, 1.43], [114, 3, 4, 1.03], [21697, 3, 4, 0.45], [4586, 10, 10, 0.8], [10407, 10, 7, 1.31], [13249, 29, 4, 0.38], [823, 1, 4, 0.57], [289, 3, 4, 1.02], [9965, 2, 4, 0.92], [10609, 1, 4, 1.55], [336, 15, 4, 0.38], [9964, 2, 4, 0.92], [4076, 3, 4, 1.42], [7324, 1, 4, 0.67], [12647, 1, 4, 0.75], [1277, 1, 4, 0.43], [2528, 29, 4, 0.97], [3495, 3, 10, 0.82], [1523, 1, 4, 0.4], [4372, 10, 7, 0.52], [11425, 25, 4, 0.57], [6935, 2, 237, 4.77], [141, 2, 134, 2.51], [589, 2, 106, 2.67], [2778, 2, 114, 3.75], [6936, 2, 237, 5.31], [2327, 2, 130, 2.8], [362, 2, 103, 2.95], [8648, 2, 200, 5.47], [11681, 2, 197, 5.59], [8650, 2, 162, 5.74], [326, 2, 67, 3.24], [205, 2, 75, 2.77], [1446, 2, 79, 2.84], [2328, 2, 110, 3.51], [305, 2, 76, 3.76], [2049, 3, 191, 1.77], [2775, 2, 114, 3.75], [8853, 2, 202, 5.94], [361, 2, 114, 3.03], [593, 2, 167, 2.88], [143, 2, 108, 3.18], [1429, 2, 53, 2.99], [206, 2, 38, 2.96], [523, 2, 114, 2.91], [12350, 1, 455, 2.9], [7036, 1, 94, 4.63], [1124, 2, 136, 3.38], [151, 1, 49, 2.6], [5165, 1, 35, 4.29], [417, 2, 114, 2.93], [248, 1, 28, 2.77], [144, 2, 52, 3.57], [2050, 3, 164, 3.22], [6952, 1, 138, 4.96], [6097, 80, 49, 6.0], [345, 3, 219, 3.6], [11770, 1, 189, 2.34], [3891, 1, 108, 2.88], [9372, 1, 199, 4.89], [5165, 2, 278, 4.28], [7005, 1, 28, 1.97], [3893, 1, 91, 2.76], [998, 2, 176, 4.18], [12870, 1, 120, 3.0], [10574, 3, 370, 3.81], [3334, 5, 131, 4.29], [6097, 29, 25, 6.0], [7885, 4, 48, 1.82], [6098, 80, 55, 4.1], [346, 3, 465, 2.72], [11089, 1, 147, 3.09], [12344, 1, 535, 2.43], [10149, 3, 754, 2.93], [6158, 2, 90, 3.46], [3889, 1, 107, 2.84], [1492, 1, 28, 2.62], [432, 3, 223, 3.51], [11953, 1, 173, 2.22], [1519, 3, 1222, 2.59], [4032, 29, 82, 2.42], [411, 2, 75, 2.91], [2423, 80, 131, 6.0], [972, 3, 432, 3.8], [5151, 2, 18, 3.44]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 6, 0.97], [305, 2, 4, 0.75], [2049, 3, 8, 0.47], [326, 2, 4, 0.47], [141, 2, 4, 0.39], [205, 2, 4, 0.56], [151, 1, 4, 0.46], [589, 2, 5, 0.37], [1776, 1, 4, 1.48], [146, 2, 4, 0.58], [206, 2, 4, 0.2], [8648, 2, 5, 0.77], [143, 2, 4, 0.58], [2328, 2, 5, 0.55], [990, 2, 4, 0.2], [6936, 2, 5, 1.17], [1777, 1, 4, 0.93], [8650, 2, 5, 1.15], [5151, 2, 4, 1.05], [2778, 2, 4, 0.2], [88, 10, 8, 0.62], [2050, 3, 4, 0.77], [10, 2, 5, 0.47], [10149, 3, 17, 1.32], [76, 2, 4, 1.11], [8649, 2, 4, 1.15], [8677, 3, 6, 1.56], [2054, 3, 5, 0.58], [412, 1, 4, 0.91], [13028, 3, 4, 0.5], [413, 1, 4, 0.85], [7004, 1, 4, 0.4], [411, 2, 4, 0.48], [10825, 21, 8, 0.37], [410, 1, 4, 0.61], [7084, 3, 4, 1.38], [307, 2, 4, 0.58], [3478, 2, 4, 0.78], [6158, 2, 5, 0.45], [3495, 3, 15, 1.31], [5081, 2, 5, 0.2], [167, 3, 4, 1.35], [7005, 1, 4, 0.4], [1492, 1, 4, 0.2], [7036, 1, 4, 1.14], [8676, 2, 4, 0.49], [9827, 3, 4, 0.2], [45, 2, 4, 1.12], [168, 3, 5, 0.29], [5812, 3, 5, 2.5], [57, 1, 4, 0.44], [94, 4, 4, 0.51], [1504, 2, 5, 0.2], [12870, 1, 4, 2.33], [335, 3, 10, 1.08], [418, 2, 4, 0.37], [2336, 3, 5, 0.99], [6097, 29, 4, 2.36], [6097, 80, 4, 2.36], [8853, 2, 5, 1.32], [346, 1, 4, 0.56], [490, 1, 4, 0.51], [1490, 1, 4, 0.45], [998, 2, 4, 1.27], [20927, 1, 4, 0.61], [95, 3, 15, 0.54], [79, 1, 4, 0.38], [9069, 1, 4, 1.09], [22316, 3, 4, 0.49], [6098, 29, 4, 2.52], [14017, 3, 4, 0.67], [6098, 80, 4, 2.52], [1070, 7, 9, 0.43], [346, 3, 5, 0.51], [8898, 3, 5, 2.17], [997, 2, 4, 1.29], [13034, 3, 6, 1.26], [9760, 29, 4, 0.43], [20498, 1, 5, 0.55], [192, 3, 11, 1.24], [336, 15, 4, 0.38], [5086, 1, 5, 0.58], [8945, 3, 5, 0.8], [7887, 4, 4, 0.37], [12350, 1, 4, 2.08], [5811, 3, 5, 1.18], [7567, 3, 4, 1.12], [22317, 3, 6, 0.51], [11085, 2, 5, 0.45], [12345, 1, 4, 1.02], [12924, 1, 4, 0.2], [5813, 3, 5, 1.08], [12349, 1, 4, 1.0], [229, 1, 4, 2.07], [972, 3, 5, 0.35], [995, 2, 4, 1.31], [9082, 3, 15, 0.67], [1622, 1, 5, 0.2], [8557, 3, 4, 0.33], [12352, 1, 4, 1.0], [20498, 3, 5, 1.1], [996, 2, 4, 1.24], [9691, 1, 4, 1.41], [12346, 1, 4, 1.02], [8104, 1, 4, 0.39], [3049, 3, 4, 1.48], [1080, 3, 4, 0.8], [14018, 3, 4, 0.5], [4076, 3, 4, 2.69], [3900, 3, 4, 1.68], [13023, 3, 6, 1.24], [1703, 2, 4, 1.38], [110, 4, 4, 0.94], [20486, 3, 6, 1.0], [5584, 3, 4, 0.5], [9613, 1, 4, 0.45], [2424, 80, 4, 1.95], [35, 1, 4, 1.05], [972, 1, 4, 0.48], [215, 4, 4, 3.07], [9372, 1, 4, 0.39], [1414, 15, 4, 0.42], [9081, 3, 7, 0.78], [20486, 1, 4, 0.51], [33, 1, 4, 0.74], [114, 3, 4, 0.48], [6497, 1, 4, 1.0], [39, 1, 4, 0.55], [11510, 3, 5, 0.97], [823, 1, 4, 0.36], [3047, 3, 4, 0.55], [1339, 3, 10, 0.42], [2854, 21, 8, 0.47], [18, 1, 4, 0.48], [13893, 2, 4, 1.17], [10529, 29, 4, 1.44], [8672, 2, 223, 4.57], [305, 2, 115, 3.14], [2049, 3, 508, 2.01], [326, 2, 72, 2.63], [141, 2, 123, 2.37], [205, 2, 50, 1.98], [151, 1, 53, 2.49], [589, 2, 71, 1.58], [1776, 1, 100, 4.01], [146, 2, 119, 2.72], [206, 2, 50, 2.36], [8648, 2, 176, 4.17], [143, 2, 117, 2.71], [2328, 2, 119, 2.66], [990, 2, 41, 2.81], [6936, 2, 223, 4.12], [1777, 1, 100, 3.38], [8650, 2, 176, 4.82], [5151, 2, 19, 3.18], [2778, 2, 123, 2.71], [88, 10, 442, 3.9], [2050, 3, 373, 3.04], [10, 2, 63, 4.58], [10149, 3, 676, 4.91], [76, 2, 85, 3.94], [8649, 2, 176, 4.51], [8677, 3, 231, 4.73], [2054, 3, 368, 4.35], [412, 1, 66, 3.32], [13028, 3, 116, 2.58], [413, 1, 68, 2.8], [7004, 1, 63, 2.38], [411, 2, 76, 2.53], [10825, 21, 505, 2.33], [410, 1, 96, 2.33], [307, 2, 117, 2.72], [3478, 2, 59, 3.39], [6158, 2, 184, 2.19], [3495, 3, 754, 3.9], [5081, 2, 150, 2.65], [7005, 1, 63, 2.38], [1492, 1, 29, 2.35], [7036, 1, 100, 4.13], [8676, 2, 223, 4.2], [9827, 3, 69, 2.54], [45, 2, 85, 5.32], [168, 3, 321, 3.12], [5812, 3, 541, 5.56], [57, 1, 40, 1.8], [94, 4, 94, 4.2], [1504, 2, 161, 2.49], [12870, 1, 108, 5.93], [335, 3, 1163, 4.95], [418, 2, 130, 1.87], [2336, 3, 536, 2.91], [6097, 29, 27, 5.7], [6097, 80, 53, 5.7], [8853, 2, 223, 5.23], [346, 1, 142, 2.23], [490, 1, 41, 2.58], [1490, 1, 47, 2.03], [998, 2, 217, 3.65], [95, 3, 884, 2.58], [79, 1, 22, 1.5]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 12, 2.68], [305, 2, 7, 1.49], [3, 2, 7, 0.9], [326, 2, 11, 1.63], [589, 2, 10, 0.81], [6935, 2, 18, 3.14], [205, 2, 7, 0.71], [143, 2, 7, 1.12], [75, 2, 9, 1.72], [144, 2, 7, 0.94], [12721, 2, 10, 1.69], [145, 2, 7, 1.0], [8915, 2, 12, 0.71], [1776, 1, 7, 1.17], [146, 2, 7, 1.0], [2778, 2, 9, 1.07], [206, 2, 7, 1.18], [6936, 2, 10, 2.57], [1777, 1, 7, 1.85], [151, 1, 7, 0.71], [8648, 2, 9, 3.76], [2328, 2, 7, 1.55], [8650, 2, 9, 4.7], [5151, 2, 7, 3.02], [2050, 3, 9, 1.53], [7886, 4, 7, 0.87], [141, 2, 7, 2.12], [248, 1, 7, 0.68], [88, 10, 21, 2.85], [74, 1, 7, 3.53], [2054, 3, 7, 1.04], [2991, 3, 7, 4.18], [2057, 3, 7, 0.87], [7004, 1, 7, 0.71], [1446, 2, 7, 0.93], [1492, 1, 7, 2.35], [362, 2, 7, 2.43], [2055, 3, 7, 0.82], [76, 2, 7, 2.04], [8649, 2, 9, 4.7], [345, 3, 7, 1.1], [7005, 1, 7, 0.73], [3889, 1, 7, 0.8], [11234, 2, 11, 0.93], [10825, 21, 13, 2.29], [7084, 3, 7, 3.91], [5081, 2, 7, 1.33], [12870, 1, 7, 4.49], [7036, 1, 7, 2.24], [10149, 3, 21, 1.68], [3478, 2, 7, 2.63], [1654, 2, 7, 1.04], [94, 4, 7, 2.1], [3891, 1, 7, 2.13], [167, 3, 7, 2.27], [432, 3, 7, 1.15], [33, 1, 9, 2.05], [9827, 3, 7, 0.78], [411, 2, 7, 0.71], [168, 3, 7, 2.37], [8677, 3, 9, 1.26], [79, 1, 7, 0.66], [3893, 1, 7, 2.13], [23, 1, 7, 1.29], [22247, 2, 11, 2.32], [201, 3, 7, 1.1], [1490, 1, 9, 0.67], [1124, 2, 11, 0.93], [5812, 3, 8, 1.9], [96, 11, 24, 1.07], [11737, 2, 7, 1.03], [9760, 29, 7, 1.42], [35, 1, 7, 1.95], [6158, 2, 8, 0.86], [335, 3, 16, 0.76], [12225, 1, 7, 1.7], [412, 1, 7, 2.19], [346, 1, 7, 1.08], [20927, 1, 7, 1.39], [229, 1, 7, 4.95], [25, 1, 7, 1.46], [1767, 25, 7, 1.14], [45, 2, 7, 2.72], [998, 2, 7, 3.22], [3980, 4, 7, 2.46], [413, 1, 7, 2.06], [21269, 3, 7, 3.75], [346, 3, 7, 0.99], [3495, 3, 18, 2.26], [95, 3, 17, 0.96], [856, 1, 7, 0.69], [1766, 25, 7, 1.08], [5946, 1, 7, 1.98], [490, 1, 7, 1.02], [997, 2, 7, 2.24], [8898, 3, 7, 2.78], [34, 1, 7, 1.9], [1070, 7, 15, 0.85], [9372, 1, 7, 3.35], [9691, 1, 7, 2.44], [9690, 1, 7, 1.87], [11954, 1, 7, 0.87], [20498, 1, 7, 1.8], [14017, 3, 7, 2.0], [974, 3, 7, 2.14], [418, 2, 7, 0.89], [14037, 3, 9, 1.09], [22317, 3, 7, 0.98], [972, 3, 8, 1.64], [20498, 3, 8, 1.9], [1091, 1, 7, 1.27], [9828, 3, 7, 0.89], [8274, 3, 7, 0.89], [38, 1, 7, 1.9], [5584, 3, 7, 3.74], [5811, 3, 7, 3.52], [1414, 15, 7, 0.81], [12350, 1, 7, 1.02], [5813, 3, 7, 2.91], [2991, 1, 7, 2.72], [24, 1, 7, 2.0], [3048, 3, 7, 3.68], [110, 4, 7, 0.73], [1080, 3, 7, 1.59], [13034, 3, 8, 2.15], [8104, 1, 7, 0.85], [13260, 29, 7, 1.41], [1767, 2, 7, 1.14], [336, 15, 7, 0.98], [11811, 1, 7, 2.77], [955, 2, 7, 0.9], [8635, 3, 7, 0.96], [39, 1, 7, 1.14], [10780, 10, 7, 3.58], [2878, 1, 7, 1.84], [9082, 3, 24, 2.75], [3981, 3, 20, 3.12], [4203, 1, 7, 1.06], [5812, 3, 426, 3.19], [96, 11, 614, 2.87], [11737, 2, 37, 2.84], [9760, 29, 52, 3.16], [35, 1, 95, 3.11], [6158, 2, 189, 2.66], [335, 3, 1124, 2.07], [412, 1, 61, 3.86], [346, 1, 131, 2.38], [25, 1, 81, 3.21], [1767, 25, 125, 2.9], [45, 2, 79, 4.03], [998, 2, 172, 5.52], [3980, 4, 347, 4.26], [413, 1, 63, 3.36], [21269, 3, 250, 5.05], [346, 3, 526, 2.29], [3495, 3, 695, 4.07], [95, 3, 815, 2.77], [1766, 25, 136, 2.83], [5946, 1, 90, 3.28], [490, 1, 43, 2.79], [997, 2, 204, 3.54], [8898, 3, 213, 4.58], [34, 1, 95, 3.2], [1070, 7, 428, 2.63], [9372, 1, 193, 4.65], [9691, 1, 55, 3.74], [9690, 1, 64, 3.17], [11954, 1, 146, 2.68], [20498, 1, 71, 3.61], [14017, 3, 142, 3.71], [974, 3, 108, 3.45], [418, 2, 120, 2.19], [22317, 3, 269, 2.28], [972, 3, 428, 2.95], [20498, 3, 500, 3.2], [1091, 1, 20, 2.14], [9828, 3, 75, 2.19], [38, 1, 95, 3.2], [5584, 3, 198, 5.04], [5811, 3, 503, 4.82], [1414, 15, 64, 1.97], [12350, 1, 529, 2.33], [5813, 3, 503, 4.22], [2991, 1, 35, 4.02], [24, 1, 95, 3.3], [3048, 3, 232, 4.98], [110, 4, 90, 1.6], [1080, 3, 113, 2.89], [13034, 3, 503, 3.46], [8104, 1, 176, 2.15], [13260, 29, 62, 2.71], [1767, 2, 29, 2.44], [11811, 1, 385, 4.08], [955, 2, 93, 2.2], [39, 1, 95, 2.44], [10780, 10, 326, 4.89], [2878, 1, 68, 3.14], [9082, 3, 2084, 4.08], [3981, 3, 1370, 4.44], [4203, 1, 41, 2.36]]</t>
+  </si>
+  <si>
+    <t>[[2327, 2, 7, 1.0], [305, 2, 7, 1.32], [6935, 2, 11, 4.09], [2778, 2, 7, 1.43], [589, 2, 10, 0.87], [144, 2, 7, 1.04], [130, 1, 7, 2.36], [8915, 2, 8, 0.81], [143, 2, 7, 0.85], [2328, 2, 9, 1.39], [6936, 2, 7, 3.27], [8648, 2, 9, 3.08], [2775, 2, 9, 0.8], [205, 2, 7, 0.74], [8650, 2, 7, 2.95], [593, 2, 11, 0.97], [326, 2, 9, 2.24], [146, 2, 7, 1.1], [145, 2, 7, 0.96], [5493, 2, 7, 0.85], [3840, 1, 9, 1.09], [7036, 1, 9, 3.03], [2049, 3, 12, 0.72], [2776, 2, 9, 0.92], [88, 10, 16, 2.6], [141, 2, 7, 0.72], [7004, 1, 9, 3.07], [206, 2, 7, 0.74], [9760, 29, 7, 1.24], [990, 2, 7, 1.07], [1007, 2, 7, 1.35], [362, 2, 7, 1.0], [2055, 3, 7, 1.08], [2912, 1, 9, 1.91], [3893, 1, 7, 0.71], [142, 2, 7, 0.77], [2057, 3, 7, 1.08], [12870, 1, 7, 3.23], [9372, 1, 7, 3.54], [10993, 2, 7, 1.25], [2050, 3, 7, 1.08], [3889, 1, 7, 1.38], [2054, 3, 9, 0.8], [7084, 3, 7, 2.06], [523, 2, 7, 0.73], [2991, 3, 7, 3.64], [7886, 4, 7, 0.8], [10, 2, 7, 0.89], [3891, 1, 7, 0.76], [7573, 1, 16, 3.81], [1622, 1, 9, 0.84], [10149, 3, 21, 2.58], [5208, 3, 9, 1.29], [75, 2, 7, 1.93], [20927, 1, 7, 2.43], [3, 2, 7, 1.83], [11234, 2, 9, 1.8], [997, 2, 7, 2.43], [1886, 2, 9, 0.86], [12721, 2, 7, 2.81], [346, 3, 7, 1.31], [22247, 2, 7, 2.77], [996, 2, 7, 3.13], [229, 1, 7, 2.02], [998, 2, 7, 1.56], [94, 4, 7, 2.1], [2912, 2, 12, 3.19], [972, 3, 10, 1.52], [9491, 21, 26, 0.95], [35, 1, 7, 2.48], [76, 2, 7, 1.6], [413, 1, 7, 2.66], [33, 1, 7, 1.79], [83, 2, 7, 1.83], [13928, 1, 7, 1.35], [5076, 1, 7, 1.87], [2805, 137, 7, 2.56], [5209, 3, 7, 2.29], [8104, 1, 7, 1.7], [346, 1, 7, 0.83], [8676, 2, 7, 2.91], [7887, 4, 7, 1.87], [38, 1, 7, 2.18], [8898, 3, 7, 4.91], [12212, 29, 7, 0.9], [3495, 3, 16, 1.61], [84, 2, 7, 1.73], [34, 1, 7, 2.06], [11490, 1, 7, 0.89], [10407, 10, 10, 3.76], [632, 11, 21, 0.79], [11770, 1, 7, 1.65], [13928, 2, 7, 2.69], [995, 2, 7, 3.16], [11772, 1, 7, 0.84], [9690, 1, 7, 0.9], [411, 2, 7, 0.92], [39, 1, 7, 2.12], [9691, 1, 7, 1.39], [1703, 2, 7, 1.6], [11953, 1, 7, 1.0], [82, 2, 7, 1.58], [5584, 3, 7, 5.0], [12764, 2, 8, 1.75], [13893, 2, 7, 2.25], [7567, 3, 7, 2.08], [74, 1, 7, 3.33], [10410, 10, 15, 3.09], [972, 1, 7, 1.02], [5164, 1, 7, 3.75], [21269, 3, 7, 2.57], [1523, 1, 7, 1.16], [23961, 3, 7, 3.68], [2331, 1, 7, 1.23], [13023, 3, 8, 1.41], [10408, 10, 8, 3.61], [4253, 1, 7, 1.16], [1492, 1, 7, 0.87], [4076, 3, 7, 2.73], [6097, 80, 7, 1.46], [6805, 1, 7, 0.97], [12229, 2, 7, 0.94], [2438, 2, 8, 3.21], [13034, 3, 7, 2.36], [3429, 15, 7, 0.85], [3047, 3, 7, 2.46], [21059, 1, 7, 2.67], [8283, 2, 8, 1.19], [1243, 2, 7, 2.23], [3576, 29, 7, 0.81], [3430, 15, 7, 1.83], [2436, 4, 7, 1.08], [8674, 2, 7, 1.94], [6097, 29, 7, 1.46], [10780, 10, 7, 3.18], [19931, 1, 7, 2.43], [11812, 1, 7, 0.89], [413, 1, 72, 4.29], [33, 1, 92, 3.85], [13928, 1, 40, 3.42], [5076, 1, 108, 3.5], [2805, 137, 177, 4.19], [8104, 1, 170, 3.83], [346, 1, 152, 2.46], [8676, 2, 280, 4.54], [38, 1, 92, 3.81], [8898, 3, 243, 6.0], [12212, 29, 118, 2.53], [3495, 3, 795, 3.74], [84, 2, 33, 3.79], [34, 1, 92, 3.69], [11490, 1, 107, 2.52], [10407, 10, 990, 5.39], [632, 11, 406, 2.08], [11770, 1, 211, 3.28], [13928, 2, 23, 4.32], [995, 2, 236, 4.8], [11772, 1, 182, 2.97], [9690, 1, 25, 1.88], [411, 2, 54, 2.22], [39, 1, 92, 3.75], [9691, 1, 75, 3.02], [1703, 2, 160, 3.23], [11953, 1, 165, 3.14], [82, 2, 29, 2.88], [5584, 3, 198, 6.0], [12764, 2, 730, 3.37], [13893, 2, 268, 3.88], [7567, 3, 69, 3.71], [74, 1, 192, 4.96], [10410, 10, 990, 4.71], [972, 1, 98, 2.65], [5164, 1, 45, 5.38], [21269, 3, 286, 4.21], [1523, 1, 46, 2.79], [23961, 3, 288, 5.31], [2331, 1, 116, 2.86], [13023, 3, 589, 3.04], [10408, 10, 749, 5.25], [4253, 1, 168, 2.79], [1492, 1, 37, 2.5], [4076, 3, 196, 4.36], [6097, 80, 67, 3.09], [6805, 1, 445, 2.59], [12229, 2, 150, 2.57], [2438, 2, 614, 4.85], [13034, 3, 577, 3.98], [3429, 15, 26, 2.15], [3047, 3, 264, 4.09], [21059, 1, 314, 4.29], [8283, 2, 465, 2.82], [1243, 2, 96, 3.86], [3576, 29, 33, 2.44], [3430, 15, 68, 3.46], [2436, 4, 115, 2.71], [8674, 2, 280, 3.57], [6097, 29, 34, 3.09], [10780, 10, 367, 4.82], [19931, 1, 401, 4.06], [11812, 1, 157, 2.35]]</t>
+  </si>
+  <si>
+    <t>[[11685, 2, 7, 3.6], [6935, 2, 10, 2.95], [130, 1, 7, 2.44], [326, 2, 7, 2.44], [8648, 2, 7, 2.71], [144, 2, 7, 2.56], [2327, 2, 7, 0.98], [589, 2, 8, 0.61], [593, 2, 9, 1.22], [143, 2, 7, 1.94], [205, 2, 7, 1.43], [11681, 2, 9, 3.34], [305, 2, 7, 0.98], [2328, 2, 7, 1.45], [141, 2, 7, 1.58], [6936, 2, 9, 4.58], [151, 1, 7, 0.73], [2778, 2, 9, 1.07], [2049, 3, 14, 0.88], [146, 2, 7, 2.06], [88, 10, 18, 0.73], [615, 2, 7, 1.67], [9507, 3, 7, 1.16], [145, 2, 7, 2.56], [7036, 1, 7, 2.37], [1446, 2, 9, 1.54], [8853, 2, 7, 2.37], [362, 2, 7, 0.96], [3893, 1, 7, 1.38], [2055, 3, 7, 3.91], [75, 2, 7, 1.73], [417, 2, 7, 1.06], [11737, 2, 7, 1.76], [2050, 3, 7, 3.31], [12870, 1, 7, 3.69], [523, 2, 7, 1.05], [159, 3, 10, 1.05], [2057, 3, 7, 3.52], [142, 2, 7, 1.0], [2991, 3, 7, 4.3], [997, 2, 7, 1.5], [7084, 3, 9, 1.08], [9760, 29, 7, 1.36], [3982, 3, 17, 2.34], [11739, 2, 7, 1.41], [996, 2, 7, 1.06], [6158, 2, 9, 0.98], [998, 2, 7, 1.33], [98, 11, 16, 0.96], [84, 2, 7, 1.65], [9372, 1, 7, 4.45], [7885, 4, 7, 0.77], [10388, 2, 7, 2.13], [8672, 2, 9, 2.68], [972, 3, 7, 3.88], [8898, 3, 7, 5.0], [2912, 1, 7, 2.32], [3980, 4, 7, 2.36], [410, 1, 7, 3.58], [9491, 21, 16, 0.87], [10386, 2, 7, 2.91], [1492, 1, 7, 0.87], [13928, 1, 7, 2.32], [995, 2, 7, 2.23], [22316, 3, 7, 0.98], [22247, 2, 7, 2.12], [8677, 3, 9, 2.23], [3981, 3, 22, 2.14], [308, 1, 7, 3.28], [13893, 2, 7, 4.76], [2912, 2, 8, 3.12], [229, 1, 7, 1.35], [33, 1, 9, 4.53], [10631, 2, 7, 3.81], [11953, 1, 7, 0.9], [11490, 1, 7, 1.44], [35, 1, 9, 3.29], [159, 1, 7, 0.98], [7886, 4, 7, 0.94], [11770, 1, 7, 0.85], [22317, 3, 7, 1.42], [10407, 10, 10, 3.29], [10780, 10, 7, 3.28], [10410, 10, 10, 3.25], [1413, 15, 7, 1.12], [10149, 3, 21, 2.64], [6497, 1, 7, 0.87], [335, 3, 15, 3.87], [9691, 1, 7, 1.94], [74, 1, 7, 2.89], [10387, 2, 7, 1.83], [3478, 2, 7, 3.25], [972, 1, 7, 3.87], [12271, 2, 7, 2.91], [8897, 3, 9, 5.0], [345, 3, 7, 0.98], [9690, 1, 7, 2.1], [9971, 2, 7, 3.45], [159, 16, 7, 0.94], [2331, 1, 7, 3.73], [9082, 3, 29, 2.42], [3048, 3, 7, 1.77], [37, 1, 7, 1.27], [4076, 3, 7, 1.64], [11085, 2, 8, 2.78], [34, 1, 7, 1.04], [23611, 3, 7, 0.81], [7704, 2, 7, 3.16], [12721, 2, 7, 1.87], [11404, 2, 7, 0.83], [1163, 3, 7, 1.18], [20498, 3, 8, 2.71], [1523, 1, 7, 1.54], [11510, 3, 8, 2.0], [10936, 2, 7, 3.27], [45, 2, 7, 0.89], [4001, 3, 14, 2.5], [12764, 2, 8, 1.47], [9965, 2, 7, 2.62], [105, 3, 7, 0.98], [9964, 2, 7, 3.45], [38, 1, 7, 1.27], [215, 4, 7, 3.06], [1895, 3, 7, 1.42], [12858, 1, 7, 0.91], [10408, 10, 8, 3.19], [8635, 3, 7, 2.86], [5812, 3, 7, 1.86], [10411, 10, 8, 3.35], [11738, 2, 7, 1.69], [12212, 29, 7, 0.87], [2805, 137, 8, 1.2], [8659, 1, 7, 3.43], [11812, 1, 7, 0.89], [192, 3, 15, 3.61], [10093, 3, 17, 1.87], [2438, 2, 8, 3.23], [2912, 2, 284, 4.57], [229, 1, 72, 2.8], [10631, 2, 74, 4.71], [11953, 1, 176, 2.34], [11490, 1, 94, 2.88], [159, 1, 21, 2.18], [11770, 1, 160, 2.79], [22317, 3, 232, 2.88], [10407, 10, 1010, 4.71], [10780, 10, 318, 4.72], [10410, 10, 1010, 4.67], [1413, 15, 35, 2.02], [10149, 3, 755, 4.09], [6497, 1, 33, 2.31], [335, 3, 989, 5.33], [9691, 1, 40, 3.79], [74, 1, 148, 4.34], [10387, 2, 187, 3.27], [12271, 2, 33, 4.11], [8897, 3, 205, 6.0], [345, 3, 258, 2.42], [9690, 1, 65, 3.54], [9971, 2, 234, 4.89], [159, 16, 41, 2.15], [2331, 1, 100, 5.17], [9082, 3, 2125, 3.83], [3048, 3, 234, 3.22], [37, 1, 96, 2.72], [4076, 3, 174, 3.09], [11085, 2, 464, 4.22], [34, 1, 96, 2.49], [23611, 3, 304, 2.25], [7704, 2, 152, 4.61], [12721, 2, 248, 3.32], [11404, 2, 55, 2.03], [20498, 3, 505, 4.16], [1523, 1, 41, 2.99], [11510, 3, 510, 3.44], [10936, 2, 115, 4.72], [45, 2, 95, 2.34], [4001, 3, 684, 3.95], [12764, 2, 645, 2.91], [9965, 2, 234, 4.06], [105, 3, 213, 2.42], [9964, 2, 234, 4.89], [38, 1, 96, 2.72], [215, 4, 32, 4.51], [1895, 3, 264, 2.86], [12858, 1, 505, 2.36], [10408, 10, 662, 4.65], [8635, 3, 291, 4.3], [5812, 3, 520, 3.31], [10411, 10, 662, 4.81], [11738, 2, 20, 2.59], [12212, 29, 104, 2.31], [2805, 137, 160, 2.64], [8659, 1, 103, 4.88], [11812, 1, 208, 2.33], [192, 3, 1229, 5.06], [10093, 3, 713, 3.33], [2438, 2, 542, 4.68]]</t>
+  </si>
+  <si>
+    <t>[[326, 2, 8, 1.03], [6935, 2, 23, 3.05], [2049, 3, 13, 0.88], [362, 2, 7, 2.31], [589, 2, 12, 0.68], [141, 2, 7, 1.04], [75, 2, 9, 2.45], [130, 1, 7, 1.91], [3, 2, 9, 0.82], [1776, 1, 7, 1.12], [205, 2, 7, 1.21], [8672, 2, 12, 2.41], [2778, 2, 6, 1.06], [6936, 2, 10, 2.79], [7886, 4, 7, 1.01], [593, 2, 14, 1.11], [305, 2, 7, 0.92], [206, 2, 7, 1.21], [151, 1, 7, 0.85], [1777, 1, 7, 2.22], [8648, 2, 7, 3.21], [2328, 2, 7, 0.94], [88, 10, 17, 1.94], [11681, 2, 10, 5.0], [990, 2, 9, 0.92], [8650, 2, 9, 3.25], [5151, 2, 7, 1.73], [412, 1, 7, 2.17], [2050, 3, 7, 1.22], [144, 2, 7, 1.43], [2991, 3, 7, 3.64], [76, 2, 9, 2.75], [345, 3, 10, 1.82], [10149, 3, 25, 3.26], [57, 1, 9, 0.68], [22247, 2, 9, 3.0], [146, 2, 7, 2.68], [2054, 3, 7, 4.0], [45, 2, 7, 2.65], [7004, 1, 7, 0.9], [417, 2, 9, 1.87], [143, 2, 7, 1.34], [201, 3, 10, 2.56], [21793, 1, 7, 3.62], [167, 3, 7, 2.0], [413, 1, 7, 1.23], [2055, 3, 7, 2.83], [168, 3, 7, 1.38], [74, 1, 7, 2.52], [346, 1, 7, 0.74], [7084, 3, 7, 2.45], [11234, 2, 9, 0.93], [12721, 2, 10, 1.92], [308, 1, 9, 4.83], [10, 2, 11, 2.55], [335, 3, 18, 3.91], [7036, 1, 7, 3.29], [3495, 3, 21, 1.64], [5081, 2, 9, 0.84], [13028, 3, 7, 0.96], [10825, 21, 14, 1.17], [410, 1, 7, 1.23], [12870, 1, 7, 4.49], [8649, 2, 7, 2.97], [11404, 2, 9, 1.06], [79, 1, 7, 0.73], [3889, 1, 7, 2.38], [96, 11, 23, 0.84], [1492, 1, 7, 1.2], [23, 1, 7, 2.37], [5208, 3, 13, 1.56], [3893, 1, 7, 1.67], [9827, 3, 7, 0.86], [1504, 2, 9, 0.89], [94, 4, 7, 3.04], [13260, 29, 7, 0.89], [7005, 1, 7, 0.94], [5812, 3, 8, 2.16], [3891, 1, 9, 1.05], [1490, 1, 7, 1.35], [411, 2, 7, 1.21], [25, 1, 7, 1.83], [12353, 1, 6, 1.54], [33, 1, 7, 1.27], [21269, 3, 7, 4.99], [12349, 1, 7, 4.0], [998, 2, 9, 2.41], [5086, 1, 6, 2.04], [9069, 1, 7, 3.12], [7567, 3, 7, 3.13], [229, 1, 7, 4.95], [3980, 4, 9, 3.25], [2878, 1, 7, 1.63], [20927, 1, 7, 1.5], [346, 3, 8, 1.24], [35, 1, 7, 1.93], [1703, 2, 7, 3.38], [9691, 1, 7, 2.81], [5209, 3, 7, 1.17], [997, 2, 7, 1.16], [11914, 1, 9, 1.52], [14037, 3, 7, 0.69], [8274, 3, 7, 2.1], [5584, 3, 7, 3.61], [5660, 2, 7, 1.94], [11811, 1, 7, 1.92], [1070, 7, 13, 1.16], [159, 3, 10, 1.34], [1519, 3, 21, 0.79], [24, 1, 7, 2.26], [8898, 3, 7, 5.0], [996, 2, 7, 4.42], [1091, 1, 7, 1.1], [23961, 3, 7, 2.61], [1124, 2, 9, 0.91], [13034, 3, 10, 2.76], [9081, 3, 12, 3.64], [12661, 1, 7, 4.04], [952, 4, 7, 4.6], [27, 1, 7, 2.37], [8945, 3, 10, 5.0], [1413, 15, 7, 1.19], [22317, 3, 8, 0.9], [336, 15, 7, 0.8], [10529, 29, 7, 2.85], [9372, 1, 7, 1.55], [1163, 3, 7, 1.36], [12225, 1, 7, 1.12], [9082, 3, 21, 1.17], [6097, 29, 7, 3.08], [4203, 1, 7, 1.02], [9760, 29, 7, 0.87], [66, 16, 7, 0.87], [2109, 3, 15, 0.88], [8635, 3, 7, 1.16], [12346, 1, 7, 1.94], [5811, 3, 7, 1.9], [2104, 3, 10, 2.23], [3889, 1, 98, 3.54], [96, 11, 666, 2.46], [1492, 1, 29, 2.36], [23, 1, 102, 3.52], [3893, 1, 98, 2.83], [9827, 3, 69, 2.51], [1504, 2, 161, 2.54], [94, 4, 94, 4.2], [13260, 29, 57, 2.5], [7005, 1, 55, 1.97], [5812, 3, 459, 3.78], [3891, 1, 98, 3.02], [1490, 1, 40, 2.51], [411, 2, 50, 1.98], [25, 1, 88, 3.4], [12353, 1, 474, 3.21], [33, 1, 88, 2.86], [21269, 3, 230, 6.0], [12349, 1, 563, 5.17], [998, 2, 188, 4.57], [5086, 1, 144, 3.69], [7567, 3, 32, 4.78], [3980, 4, 377, 4.41], [2878, 1, 63, 2.79], [346, 3, 497, 2.4], [35, 1, 88, 3.09], [1703, 2, 149, 4.53], [9691, 1, 59, 4.46], [5209, 3, 260, 2.35], [997, 2, 188, 2.76], [11914, 1, 68, 3.17], [5584, 3, 197, 4.77], [5660, 2, 138, 3.59], [11811, 1, 416, 3.08], [1070, 7, 467, 2.31], [1519, 3, 1313, 2.31], [24, 1, 88, 3.42], [8898, 3, 221, 6.0], [996, 2, 217, 5.57], [1091, 1, 22, 2.75], [23961, 3, 269, 3.76], [1124, 2, 172, 2.07], [13034, 3, 459, 4.14], [9081, 3, 359, 5.3], [12661, 1, 64, 5.2], [952, 4, 57, 5.76], [27, 1, 77, 3.39], [1413, 15, 69, 2.22], [22317, 3, 291, 2.06], [336, 15, 52, 2.46], [10529, 29, 37, 4.0], [9372, 1, 210, 2.71], [12225, 1, 153, 2.28], [9082, 3, 1955, 2.92], [6097, 29, 32, 4.24], [4203, 1, 45, 2.18], [9760, 29, 66, 2.03], [66, 16, 71, 2.03], [2109, 3, 433, 2.03], [12346, 1, 563, 3.1], [5811, 3, 541, 3.06], [2104, 3, 306, 3.39]]</t>
+  </si>
+  <si>
+    <t>[[88, 10, 20, 1.59], [8915, 2, 8, 0.81], [589, 2, 8, 0.87], [2327, 2, 7, 1.0], [2778, 2, 7, 0.8], [6935, 2, 11, 3.9], [2328, 2, 7, 1.46], [5493, 2, 7, 0.85], [305, 2, 6, 0.82], [615, 2, 9, 2.5], [326, 2, 9, 3.02], [6936, 2, 7, 3.27], [8650, 2, 7, 3.91], [8648, 2, 7, 3.18], [1446, 2, 7, 1.32], [7004, 1, 9, 3.07], [2049, 3, 12, 0.72], [593, 2, 11, 0.97], [143, 2, 7, 1.81], [205, 2, 7, 0.74], [10, 2, 7, 2.55], [144, 2, 7, 2.0], [7036, 1, 9, 3.03], [94, 4, 7, 2.1], [990, 2, 7, 1.45], [3893, 1, 7, 1.21], [146, 2, 7, 2.06], [141, 2, 7, 0.75], [12224, 1, 7, 0.89], [3891, 1, 7, 1.26], [362, 2, 7, 1.0], [206, 2, 7, 0.74], [2055, 3, 7, 1.08], [75, 2, 7, 2.39], [5208, 3, 9, 1.29], [3889, 1, 7, 1.88], [7886, 4, 7, 0.8], [10993, 2, 7, 1.25], [11234, 2, 9, 1.8], [2054, 3, 7, 1.93], [7005, 1, 9, 1.49], [12870, 1, 7, 3.23], [7084, 3, 7, 2.06], [3980, 4, 8, 2.39], [10149, 3, 21, 2.58], [145, 2, 7, 1.93], [2050, 3, 7, 1.08], [2912, 1, 7, 2.33], [5165, 1, 7, 2.5], [8672, 2, 9, 3.11], [20927, 1, 7, 2.43], [998, 2, 7, 1.5], [9760, 29, 9, 0.97], [972, 3, 10, 1.52], [3, 2, 7, 1.83], [3495, 3, 14, 1.61], [229, 1, 7, 0.94], [6158, 2, 9, 4.29], [346, 3, 7, 1.31], [5076, 1, 7, 0.9], [5165, 2, 8, 3.64], [142, 2, 7, 0.69], [7887, 4, 7, 1.87], [523, 2, 7, 0.69], [74, 1, 7, 3.33], [9372, 1, 7, 3.08], [11953, 1, 7, 1.0], [11770, 1, 9, 0.96], [1492, 1, 7, 0.97], [12721, 2, 7, 2.42], [9491, 21, 26, 0.95], [3981, 3, 22, 1.31], [2912, 2, 12, 3.19], [2423, 80, 7, 3.79], [11772, 1, 7, 0.89], [6497, 1, 7, 1.09], [5434, 1, 7, 1.6], [7573, 1, 16, 3.81], [5584, 3, 7, 5.0], [12229, 2, 7, 0.94], [2438, 2, 8, 3.21], [346, 1, 7, 0.83], [335, 3, 15, 0.72], [10388, 2, 7, 2.08], [10407, 10, 10, 3.76], [11179, 1, 9, 1.07], [823, 1, 7, 2.33], [3975, 4, 7, 2.49], [6496, 1, 7, 1.94], [5209, 3, 9, 1.29], [2805, 137, 7, 2.56], [4253, 1, 7, 1.04], [11812, 1, 7, 0.84], [3900, 3, 7, 3.48], [12764, 2, 10, 1.04], [1622, 1, 7, 0.87], [1703, 2, 7, 1.6], [11490, 1, 7, 0.89], [8676, 2, 7, 2.91], [972, 1, 7, 1.94], [13893, 2, 7, 2.25], [22247, 2, 7, 3.16], [412, 1, 7, 2.06], [6097, 80, 7, 1.46], [2991, 3, 7, 4.1], [10386, 2, 7, 4.24], [11814, 1, 7, 0.92], [7567, 3, 7, 2.08], [6805, 1, 7, 0.97], [10410, 10, 15, 3.17], [8635, 3, 7, 2.25], [1274, 1, 7, 1.26], [37, 1, 7, 2.55], [788, 2, 7, 0.9], [8283, 2, 8, 1.19], [10408, 10, 8, 3.61], [389, 4, 7, 2.81], [8104, 1, 7, 2.1], [12212, 29, 7, 0.9], [35, 1, 7, 2.17], [23611, 3, 8, 0.74], [114, 3, 7, 2.02], [1895, 3, 7, 4.16], [76, 2, 7, 0.9], [95, 3, 22, 0.85], [38, 1, 7, 1.27], [12979, 25, 12, 1.91], [3979, 3, 13, 0.75], [10385, 2, 7, 1.0], [12501, 1, 7, 2.39], [220, 4, 7, 0.85], [8274, 3, 7, 2.23], [4232, 80, 7, 3.58], [24257, 1, 7, 0.92], [5435, 1, 7, 1.49], [9690, 1, 7, 0.9], [8659, 1, 7, 1.64], [440, 3, 7, 1.44], [3981, 3, 1366, 3.43], [2912, 2, 372, 4.81], [2423, 80, 151, 5.42], [11772, 1, 182, 2.97], [6497, 1, 37, 2.72], [5434, 1, 48, 3.23], [7573, 1, 306, 5.44], [5584, 3, 198, 6.0], [12229, 2, 150, 2.57], [2438, 2, 614, 4.85], [346, 1, 152, 2.46], [335, 3, 864, 2.2], [10388, 2, 179, 4.21], [10407, 10, 990, 5.39], [11179, 1, 73, 3.56], [823, 1, 40, 3.96], [3975, 4, 473, 4.11], [6496, 1, 39, 3.57], [2805, 137, 177, 4.19], [4253, 1, 142, 3.13], [11812, 1, 196, 2.98], [12764, 2, 611, 3.42], [1622, 1, 53, 2.97], [1703, 2, 160, 3.23], [11490, 1, 107, 2.52], [8676, 2, 280, 4.54], [972, 1, 49, 3.66], [13893, 2, 268, 3.88], [22247, 2, 233, 4.79], [412, 1, 82, 3.69], [6097, 80, 67, 3.09], [2991, 3, 158, 5.73], [10386, 2, 179, 6.0], [11814, 1, 183, 2.49], [7567, 3, 69, 3.71], [6805, 1, 445, 2.59], [10410, 10, 1142, 4.79], [1274, 1, 81, 2.89], [37, 1, 54, 3.85], [8283, 2, 465, 2.82], [10408, 10, 749, 5.25], [389, 4, 201, 4.44], [8104, 1, 200, 3.73], [12212, 29, 118, 2.53], [35, 1, 109, 3.8], [23611, 3, 343, 2.37], [114, 3, 238, 3.65], [1895, 3, 293, 5.79], [76, 2, 107, 2.53], [95, 3, 1109, 2.46], [38, 1, 109, 2.9], [12979, 25, 641, 3.53], [3979, 3, 801, 2.39], [10385, 2, 200, 2.62], [12501, 1, 291, 4.02], [220, 4, 48, 2.48], [4232, 80, 145, 5.21], [24257, 1, 46, 1.9], [9690, 1, 25, 1.88], [8659, 1, 118, 3.27], [440, 3, 192, 3.07]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 10, 2.95], [615, 2, 7, 1.17], [305, 2, 7, 0.98], [2778, 2, 7, 1.07], [6936, 2, 9, 3.69], [205, 2, 7, 0.98], [130, 1, 7, 1.94], [144, 2, 7, 0.9], [8648, 2, 7, 2.71], [2049, 3, 14, 0.88], [88, 10, 18, 0.73], [7036, 1, 7, 2.37], [326, 2, 7, 1.94], [589, 2, 8, 0.61], [8650, 2, 7, 2.48], [593, 2, 9, 1.29], [11681, 2, 9, 3.84], [2327, 2, 7, 0.98], [3893, 1, 7, 0.75], [141, 2, 9, 1.58], [151, 1, 7, 1.73], [9507, 3, 7, 0.66], [11685, 2, 7, 3.35], [248, 1, 7, 0.79], [146, 2, 7, 2.06], [2050, 3, 7, 3.31], [2055, 3, 7, 3.41], [143, 2, 7, 0.98], [3980, 4, 7, 2.36], [2054, 3, 7, 3.66], [8672, 2, 9, 2.68], [7885, 4, 7, 0.77], [362, 2, 7, 0.91], [12870, 1, 7, 3.71], [2057, 3, 7, 3.52], [7886, 4, 7, 1.23], [13028, 3, 7, 1.25], [145, 2, 7, 1.98], [7084, 3, 7, 1.44], [3495, 3, 21, 1.64], [523, 2, 7, 1.05], [3975, 4, 7, 2.49], [2991, 3, 7, 4.3], [10149, 3, 21, 2.64], [9760, 29, 9, 0.86], [11404, 2, 7, 0.72], [20927, 1, 7, 2.25], [142, 2, 7, 1.0], [3982, 3, 17, 2.34], [3981, 3, 21, 2.03], [6158, 2, 7, 1.75], [417, 2, 7, 1.06], [214, 3, 15, 0.74], [2912, 1, 7, 3.1], [11953, 1, 7, 0.9], [997, 2, 7, 4.76], [22316, 3, 7, 0.98], [33, 1, 9, 4.53], [229, 1, 7, 1.35], [7887, 4, 7, 2.25], [6497, 1, 7, 2.52], [1492, 1, 7, 2.26], [346, 3, 7, 0.88], [998, 2, 7, 5.0], [972, 3, 9, 3.74], [996, 2, 9, 3.08], [35, 1, 9, 4.53], [389, 4, 7, 2.27], [410, 1, 7, 3.58], [11770, 1, 7, 0.85], [2912, 2, 10, 2.79], [336, 15, 7, 1.28], [7567, 3, 9, 3.64], [74, 1, 7, 1.8], [2104, 3, 10, 0.73], [1413, 15, 7, 1.12], [6496, 1, 7, 1.06], [12721, 2, 7, 1.87], [12212, 29, 7, 0.87], [22317, 3, 7, 1.42], [4176, 4, 9, 3.25], [8673, 2, 7, 4.12], [8677, 3, 7, 2.57], [8676, 2, 7, 1.7], [11085, 2, 8, 3.16], [37, 1, 7, 1.27], [1274, 1, 7, 1.02], [21269, 3, 7, 5.0], [22247, 2, 7, 3.16], [7573, 1, 11, 4.14], [13023, 3, 7, 2.44], [9372, 1, 7, 4.45], [39, 1, 7, 1.79], [823, 1, 7, 0.92], [10388, 2, 7, 2.26], [6494, 1, 7, 0.87], [345, 3, 7, 0.98], [201, 3, 7, 2.36], [12271, 2, 7, 1.35], [10936, 2, 7, 3.27], [96, 11, 22, 2.04], [10408, 10, 8, 3.19], [3577, 25, 7, 1.14], [12225, 1, 7, 2.38], [3, 2, 7, 1.85], [10631, 2, 7, 3.81], [2805, 137, 8, 1.2], [11812, 1, 7, 0.89], [9691, 1, 7, 1.44], [1490, 1, 7, 2.08], [1414, 15, 7, 1.05], [20498, 3, 8, 2.71], [23961, 3, 7, 2.91], [36, 1, 7, 1.27], [192, 3, 15, 3.61], [9690, 1, 7, 2.1], [12764, 2, 8, 1.47], [10386, 2, 7, 1.91], [13928, 1, 7, 2.9], [346, 1, 7, 1.06], [3048, 3, 7, 1.77], [8898, 3, 7, 3.58], [10407, 10, 10, 3.29], [3576, 25, 7, 1.44], [11814, 1, 7, 0.92], [13893, 2, 7, 4.76], [11089, 1, 7, 1.17], [972, 1, 7, 1.51], [1339, 3, 15, 0.79], [5812, 3, 7, 1.86], [10939, 2, 7, 3.72], [1523, 1, 7, 1.54], [1163, 3, 7, 1.18], [491, 10, 8, 2.07], [13035, 3, 7, 2.54], [19931, 1, 7, 2.43], [2878, 1, 7, 0.75], [8659, 1, 7, 3.43], [6496, 1, 35, 2.5], [12721, 2, 248, 3.32], [12212, 29, 104, 2.31], [22317, 3, 232, 2.88], [4176, 4, 353, 4.69], [8673, 2, 242, 5.57], [8677, 3, 216, 4.01], [8676, 2, 248, 3.14], [11085, 2, 391, 4.64], [37, 1, 96, 2.72], [1274, 1, 71, 2.46], [21269, 3, 216, 6.0], [22247, 2, 207, 4.6], [7573, 1, 302, 5.59], [13023, 3, 510, 3.88], [9372, 1, 196, 5.89], [39, 1, 96, 3.24], [823, 1, 35, 2.36], [10388, 2, 158, 4.21], [6494, 1, 45, 2.31], [345, 3, 258, 2.42], [201, 3, 258, 3.81], [12271, 2, 55, 2.8], [10936, 2, 115, 4.72], [96, 11, 293, 2.94], [10408, 10, 662, 4.65], [3577, 25, 77, 2.59], [12225, 1, 142, 3.82], [3, 2, 106, 3.3], [10631, 2, 74, 4.71], [2805, 137, 160, 2.64], [11812, 1, 208, 2.33], [9691, 1, 66, 2.89], [1490, 1, 44, 3.53], [1414, 15, 35, 1.95], [20498, 3, 505, 4.16], [23961, 3, 255, 4.35], [36, 1, 96, 2.72], [192, 3, 1229, 5.06], [9690, 1, 65, 3.54], [12764, 2, 645, 2.91], [10386, 2, 187, 3.36], [13928, 1, 40, 4.35], [346, 1, 134, 2.51], [3048, 3, 234, 3.22], [8898, 3, 243, 5.03], [10407, 10, 1010, 4.71], [3576, 25, 88, 2.88], [11814, 1, 195, 2.37], [13893, 2, 231, 6.0], [11089, 1, 149, 2.62], [972, 1, 85, 2.95], [5812, 3, 520, 3.31], [10939, 2, 115, 5.16], [1523, 1, 41, 2.99], [491, 10, 381, 3.52], [13035, 3, 260, 3.99], [19931, 1, 354, 3.88], [2878, 1, 71, 2.2], [8659, 1, 103, 4.88]]</t>
+  </si>
+  <si>
+    <t>[[141, 2, 7, 0.88], [2328, 2, 9, 1.85], [8650, 2, 9, 2.38], [5491, 2, 9, 0.9], [362, 2, 9, 0.81], [130, 1, 9, 1.36], [589, 2, 7, 1.45], [2327, 2, 9, 1.82], [326, 2, 7, 2.16], [8672, 2, 12, 2.4], [417, 2, 9, 0.87], [6935, 2, 19, 4.24], [206, 2, 9, 0.77], [6936, 2, 9, 2.7], [142, 2, 9, 0.87], [8915, 2, 7, 1.21], [11838, 2, 9, 1.02], [12721, 2, 11, 1.45], [2049, 3, 14, 1.23], [1446, 2, 7, 0.85], [2778, 2, 13, 1.34], [523, 2, 7, 1.72], [8676, 2, 7, 1.0], [305, 2, 7, 1.89], [411, 2, 7, 0.83], [10574, 3, 9, 2.49], [12349, 1, 7, 1.02], [145, 2, 7, 2.13], [8675, 2, 9, 2.44], [990, 2, 7, 2.15], [76, 2, 7, 1.62], [143, 2, 7, 0.92], [8673, 2, 7, 2.91], [11836, 2, 9, 0.86], [146, 2, 7, 2.68], [6158, 2, 10, 2.15], [151, 1, 7, 0.85], [3495, 3, 21, 2.26], [2050, 3, 7, 0.64], [10149, 3, 21, 2.47], [2055, 3, 7, 2.04], [12350, 1, 7, 1.02], [2054, 3, 7, 1.4], [75, 2, 7, 3.21], [144, 2, 7, 2.63], [7885, 4, 7, 1.31], [2859, 15, 7, 1.6], [88, 10, 16, 2.1], [10993, 2, 7, 1.44], [3848, 2, 7, 2.06], [7705, 2, 7, 2.28], [2423, 80, 9, 4.85], [2424, 29, 9, 3.34], [2423, 29, 7, 1.5], [12351, 1, 7, 0.85], [2424, 80, 7, 4.47], [60, 3, 8, 3.51], [1519, 3, 13, 0.68], [201, 3, 7, 2.66], [1414, 15, 7, 0.67], [12373, 1, 11, 2.99], [345, 3, 7, 1.99], [5208, 3, 13, 0.87], [6952, 1, 7, 0.97], [20927, 1, 7, 1.89], [11954, 1, 7, 0.85], [432, 3, 9, 4.04], [3, 2, 7, 2.93], [3430, 15, 7, 2.08], [7004, 1, 7, 1.96], [7886, 4, 7, 0.81], [11811, 1, 7, 1.93], [2703, 3, 7, 4.17], [13928, 1, 9, 0.75], [2331, 1, 7, 1.16], [114, 3, 7, 1.1], [3429, 15, 7, 0.94], [11089, 1, 7, 0.83], [105, 3, 7, 1.05], [5584, 3, 7, 5.0], [3981, 3, 13, 0.91], [944, 15, 7, 0.77], [308, 1, 11, 2.72], [7706, 2, 7, 2.62], [10407, 10, 10, 3.25], [8274, 3, 7, 3.88], [1886, 2, 7, 0.67], [1490, 1, 7, 3.85], [10410, 10, 10, 3.76], [22317, 3, 10, 0.81], [94, 4, 7, 3.11], [3891, 1, 7, 1.58], [3893, 1, 7, 2.19], [8898, 3, 7, 4.88], [9690, 1, 7, 1.75], [9082, 3, 24, 2.83], [7708, 2, 7, 2.62], [3028, 3, 7, 0.83], [6497, 1, 7, 0.85], [9342, 2, 8, 0.85], [10409, 10, 11, 3.34], [10406, 10, 12, 3.4], [1274, 1, 7, 2.39], [952, 4, 7, 4.27], [20196, 2, 7, 3.8], [823, 1, 7, 4.28], [21003, 2, 7, 3.61], [10897, 1, 13, 0.84], [10408, 10, 10, 3.27], [20682, 1, 7, 2.02], [10398, 2, 7, 3.31], [5812, 3, 7, 2.91], [5946, 1, 7, 2.83], [13928, 2, 7, 2.9], [11677, 1, 7, 2.24], [4253, 1, 7, 1.41], [957, 2, 7, 0.92], [6630, 3, 7, 3.56], [7703, 2, 7, 2.62], [186, 3, 12, 0.97], [20680, 1, 7, 1.33], [95, 3, 13, 2.7], [963, 3, 7, 4.0], [20555, 2, 7, 0.85], [8635, 3, 7, 3.88], [2438, 2, 8, 3.32], [2805, 137, 10, 5.0], [1050, 2, 7, 0.69], [8897, 3, 7, 4.88], [3478, 2, 7, 2.46], [3980, 4, 7, 2.49], [3889, 1, 7, 2.19], [11603, 2, 7, 2.95], [9068, 1, 7, 3.0], [5811, 3, 8, 3.52], [9, 1, 7, 0.75], [11812, 1, 7, 0.89], [9491, 21, 16, 4.69], [2703, 3, 308, 5.95], [13928, 1, 41, 3.1], [2331, 1, 119, 2.94], [114, 3, 245, 2.88], [3429, 15, 18, 2.01], [11089, 1, 174, 2.61], [105, 3, 245, 2.82], [5584, 3, 230, 6.0], [3981, 3, 1690, 2.69], [944, 15, 15, 1.84], [308, 1, 169, 4.5], [7706, 2, 178, 4.4], [10407, 10, 1171, 5.03], [1886, 2, 158, 2.45], [1490, 1, 49, 5.63], [10410, 10, 1171, 5.54], [22317, 3, 268, 3.13], [94, 4, 117, 4.89], [3891, 1, 125, 3.36], [3893, 1, 123, 3.97], [8898, 3, 283, 6.0], [9690, 1, 51, 3.35], [9082, 3, 2464, 4.58], [7708, 2, 178, 4.4], [3028, 3, 55, 1.9], [6497, 1, 38, 2.63], [9342, 2, 156, 1.93], [10409, 10, 1765, 5.13], [10406, 10, 1765, 5.19], [1274, 1, 55, 3.99], [952, 4, 72, 6.0], [20196, 2, 285, 5.58], [823, 1, 39, 6.0], [21003, 2, 285, 5.4], [10897, 1, 355, 2.62], [10408, 10, 768, 5.06], [20682, 1, 622, 3.81], [10398, 2, 73, 4.73], [5812, 3, 594, 4.7], [5946, 1, 124, 4.61], [13928, 2, 23, 4.68], [11677, 1, 450, 4.02], [4253, 1, 173, 3.19], [957, 2, 108, 2.7], [6630, 3, 94, 5.34], [7703, 2, 178, 4.4], [186, 3, 668, 2.76], [20680, 1, 622, 3.12], [95, 3, 1066, 4.47], [963, 3, 394, 5.77], [20555, 2, 58, 2.63], [2438, 2, 629, 5.11], [2805, 137, 178, 6.0], [8897, 3, 283, 6.0], [3980, 4, 485, 4.28], [3889, 1, 123, 3.97], [11603, 2, 191, 4.74], [5811, 3, 396, 5.13], [9, 1, 12, 1.82], [11812, 1, 120, 2.31], [9491, 21, 2039, 6.0]]</t>
+  </si>
+  <si>
+    <t>[[2778, 2, 14, 1.08], [6935, 2, 23, 5.0], [6936, 2, 9, 2.9], [305, 2, 7, 1.46], [8672, 2, 12, 2.4], [615, 2, 7, 1.73], [1504, 2, 11, 1.4], [145, 2, 7, 0.9], [12721, 2, 11, 1.74], [2327, 2, 9, 1.82], [146, 2, 7, 2.14], [143, 2, 7, 1.94], [2328, 2, 9, 1.85], [11737, 2, 7, 1.51], [141, 2, 7, 2.25], [5491, 2, 9, 0.86], [205, 2, 7, 1.24], [144, 2, 7, 2.11], [8650, 2, 11, 4.63], [8676, 2, 7, 1.6], [8673, 2, 9, 2.44], [417, 2, 7, 2.25], [589, 2, 6, 0.79], [3, 2, 7, 1.27], [206, 2, 7, 0.74], [22247, 2, 7, 2.33], [6097, 80, 7, 3.92], [6497, 1, 7, 0.85], [11836, 2, 7, 1.44], [2055, 3, 7, 0.9], [990, 2, 7, 1.41], [12344, 1, 7, 2.03], [523, 2, 7, 1.27], [593, 2, 10, 0.89], [6097, 29, 7, 4.54], [6098, 80, 7, 4.99], [12345, 1, 7, 3.92], [11739, 2, 7, 1.04], [88, 10, 17, 2.02], [2054, 3, 7, 1.19], [8915, 2, 7, 0.79], [75, 2, 7, 0.9], [326, 2, 7, 0.85], [60, 3, 8, 1.51], [1492, 1, 7, 1.39], [1413, 15, 7, 1.49], [411, 2, 7, 0.74], [1050, 2, 7, 0.73], [6496, 1, 7, 2.07], [6098, 29, 7, 4.99], [947, 15, 7, 0.85], [7704, 2, 7, 2.62], [10149, 3, 21, 2.64], [345, 3, 7, 2.21], [2859, 15, 7, 1.7], [11738, 2, 7, 1.34], [1243, 2, 7, 2.14], [13264, 29, 7, 1.0], [1049, 2, 7, 0.73], [1490, 1, 7, 0.69], [229, 1, 7, 3.98], [964, 15, 7, 0.77], [7004, 1, 7, 1.56], [201, 3, 7, 3.31], [2331, 1, 7, 1.0], [10407, 10, 10, 3.25], [186, 3, 12, 1.53], [5208, 3, 13, 0.98], [22558, 3, 6, 1.74], [114, 3, 7, 2.16], [432, 3, 7, 4.24], [1163, 3, 7, 2.79], [7705, 2, 7, 2.62], [957, 2, 7, 1.43], [7706, 2, 7, 2.62], [12229, 2, 7, 0.87], [13928, 1, 7, 2.9], [2421, 80, 7, 2.08], [3478, 2, 7, 2.46], [11404, 2, 7, 0.83], [10408, 10, 10, 3.27], [10406, 10, 12, 3.4], [7036, 1, 7, 0.87], [19687, 1, 9, 2.21], [11687, 2, 7, 0.96], [10410, 10, 10, 3.76], [12870, 1, 7, 3.68], [11490, 1, 7, 1.52], [1886, 2, 7, 0.67], [9784, 1, 7, 1.94], [410, 1, 7, 1.17], [11159, 1, 14, 3.48], [22125, 2, 7, 0.69], [2703, 3, 7, 4.17], [21781, 2, 7, 0.9], [11161, 1, 10, 2.68], [9760, 29, 7, 1.64], [956, 2, 7, 1.02], [7708, 2, 7, 2.62], [12373, 1, 11, 2.99], [9065, 2, 7, 0.92], [5976, 1, 7, 3.81], [94, 4, 7, 1.16], [11689, 2, 7, 0.9], [105, 3, 7, 1.6], [8599, 1, 7, 0.98], [1274, 1, 7, 3.68], [2805, 137, 10, 2.31], [9372, 1, 7, 3.35], [9209, 29, 7, 1.04], [11953, 1, 7, 0.9], [5584, 3, 7, 5.0], [11811, 1, 7, 1.93], [4253, 1, 7, 1.41], [11160, 1, 7, 2.56], [8600, 1, 7, 1.96], [3495, 3, 21, 1.51], [247, 1, 7, 2.84], [2991, 3, 7, 4.45], [8283, 2, 8, 0.63], [21269, 3, 7, 3.75], [12764, 2, 8, 1.47], [20927, 1, 7, 1.35], [8285, 2, 8, 0.85], [11887, 2, 8, 1.0], [1691, 1, 7, 2.56], [20555, 2, 7, 0.9], [9491, 21, 16, 3.25], [5076, 1, 7, 2.16], [11677, 1, 7, 2.24], [4372, 1, 7, 0.96], [3934, 5, 9, 1.11], [12304, 1, 7, 4.83], [8635, 3, 7, 2.24], [12979, 25, 15, 1.91], [13198, 29, 7, 2.44], [3230, 1, 7, 0.83], [7705, 2, 178, 4.4], [957, 2, 91, 3.21], [7706, 2, 178, 4.4], [12229, 2, 153, 2.65], [13928, 1, 47, 4.68], [2421, 80, 71, 3.15], [11404, 2, 35, 1.9], [10408, 10, 768, 5.06], [10406, 10, 1765, 5.19], [7036, 1, 128, 2.65], [19687, 1, 26, 4.49], [11687, 2, 102, 2.03], [10410, 10, 1171, 5.54], [12870, 1, 139, 5.46], [11490, 1, 91, 3.23], [1886, 2, 158, 2.45], [9784, 1, 72, 3.72], [410, 1, 53, 2.59], [11159, 1, 497, 5.26], [22125, 2, 21, 1.76], [2703, 3, 308, 5.95], [21781, 2, 52, 2.32], [11161, 1, 501, 4.46], [9760, 29, 60, 3.35], [956, 2, 107, 2.8], [7708, 2, 178, 4.4], [12373, 1, 535, 4.76], [9065, 2, 153, 2.35], [5976, 1, 157, 5.59], [94, 4, 123, 2.94], [11689, 2, 102, 1.96], [105, 3, 244, 3.38], [8599, 1, 145, 2.76], [1274, 1, 81, 5.46], [2805, 137, 182, 4.09], [9372, 1, 229, 5.13], [9209, 29, 33, 2.82], [11953, 1, 202, 2.68], [5584, 3, 230, 6.0], [11811, 1, 453, 3.71], [4253, 1, 173, 3.19], [11160, 1, 501, 4.34], [8600, 1, 145, 3.74], [3495, 3, 969, 3.28], [247, 1, 86, 4.62], [2991, 3, 160, 6.0], [21269, 3, 296, 5.53], [12764, 2, 749, 3.24], [20927, 1, 40, 2.78], [8285, 2, 485, 2.64], [11887, 2, 193, 2.78], [1691, 1, 88, 4.34], [20555, 2, 58, 2.68], [9491, 21, 2005, 5.02], [5076, 1, 131, 3.94], [11677, 1, 450, 4.02], [4372, 1, 69, 2.74], [3934, 5, 588, 2.89], [12304, 1, 102, 6.0], [12979, 25, 657, 3.69], [13198, 29, 62, 4.22], [3230, 1, 199, 2.61]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 10, 2.0], [141, 2, 7, 0.92], [361, 2, 9, 1.17], [6935, 2, 23, 5.0], [12721, 2, 14, 3.11], [206, 2, 7, 0.77], [2049, 3, 17, 0.72], [8676, 2, 7, 1.1], [8675, 2, 9, 1.45], [1504, 2, 11, 0.95], [417, 2, 7, 0.9], [3, 2, 7, 1.13], [6936, 2, 9, 3.29], [305, 2, 7, 0.88], [22247, 2, 7, 1.83], [523, 2, 7, 1.27], [8650, 2, 7, 2.44], [8648, 2, 7, 2.02], [2328, 2, 7, 1.77], [2776, 2, 7, 1.38], [11739, 2, 7, 1.31], [2327, 2, 7, 1.48], [11837, 2, 7, 0.87], [12352, 1, 7, 3.98], [411, 2, 7, 0.73], [589, 2, 9, 0.67], [143, 2, 7, 1.35], [146, 2, 7, 2.16], [11835, 2, 7, 0.94], [6497, 1, 9, 0.85], [583, 2, 7, 2.23], [6097, 80, 7, 4.06], [326, 2, 7, 0.85], [10574, 3, 9, 3.47], [145, 2, 7, 2.81], [144, 2, 7, 2.81], [10149, 3, 26, 1.2], [11836, 2, 7, 1.04], [6097, 29, 7, 1.27], [75, 2, 7, 2.38], [12344, 1, 7, 2.59], [1413, 15, 7, 0.89], [6496, 1, 7, 2.07], [1243, 2, 7, 1.41], [6098, 80, 7, 4.99], [8915, 2, 7, 1.25], [1886, 2, 7, 1.42], [247, 1, 7, 3.97], [6098, 29, 7, 2.21], [944, 15, 9, 0.77], [1490, 1, 7, 0.9], [2859, 15, 7, 1.37], [3934, 5, 10, 0.86], [2049, 1, 9, 0.71], [201, 3, 7, 0.85], [6158, 2, 9, 3.5], [3478, 2, 7, 2.46], [12350, 1, 7, 3.92], [11489, 1, 7, 2.48], [13928, 1, 7, 2.9], [7084, 3, 7, 4.74], [1703, 2, 7, 1.53], [8599, 1, 7, 1.36], [9342, 2, 8, 0.85], [4253, 1, 7, 1.41], [3982, 3, 20, 0.67], [308, 1, 11, 1.91], [186, 3, 12, 0.97], [11887, 2, 8, 1.0], [11885, 2, 7, 0.98], [94, 4, 7, 0.92], [2438, 2, 8, 3.32], [11811, 1, 7, 1.93], [11490, 1, 7, 0.92], [1050, 2, 7, 0.69], [10398, 2, 7, 1.32], [5812, 3, 7, 3.84], [229, 1, 7, 3.07], [2821, 3, 13, 0.91], [4232, 80, 7, 1.33], [5939, 3, 7, 1.14], [11671, 1, 7, 0.81], [5813, 3, 8, 3.52], [3495, 3, 21, 1.51], [5811, 3, 8, 4.0], [8898, 3, 7, 5.0], [12764, 2, 8, 1.47], [3980, 4, 7, 2.49], [7036, 1, 7, 0.87], [2108, 3, 8, 1.43], [1049, 2, 7, 0.69], [105, 3, 7, 1.81], [13928, 2, 7, 2.9], [9690, 1, 7, 1.91], [5584, 3, 7, 5.0], [8274, 3, 7, 3.88], [22573, 2, 7, 1.91], [3981, 3, 13, 0.91], [1523, 1, 7, 1.39], [11886, 2, 7, 1.44], [10407, 10, 10, 3.25], [192, 3, 12, 4.76], [1277, 1, 7, 0.9], [8897, 3, 7, 5.0], [10124, 1, 7, 4.18], [2991, 3, 7, 4.13], [10406, 10, 12, 3.4], [20927, 1, 7, 1.28], [10147, 1, 7, 0.71], [11677, 1, 7, 2.24], [3334, 5, 7, 2.01], [2438, 1, 7, 3.21], [8635, 3, 7, 3.88], [11678, 1, 7, 3.18], [1701, 2, 7, 1.06], [23275, 2, 7, 1.91], [7004, 1, 7, 1.42], [4001, 3, 10, 0.97], [23031, 3, 7, 2.71], [9373, 5, 7, 5.0], [1274, 1, 7, 3.79], [10516, 3, 8, 3.0], [5976, 1, 7, 3.81], [10181, 26, 8, 0.93], [3984, 3, 8, 0.91], [9065, 2, 7, 0.92], [14041, 3, 7, 0.88], [8285, 2, 8, 0.85], [973, 3, 8, 1.13], [7005, 1, 7, 1.42], [19924, 2, 7, 1.83], [9069, 1, 7, 2.27], [10409, 10, 11, 3.34], [11812, 1, 7, 0.89], [1648, 1, 7, 2.23], [8188, 10, 10, 3.3], [12241, 3, 7, 0.73], [942, 3, 7, 2.26], [11811, 1, 453, 3.71], [11490, 1, 93, 3.16], [10398, 2, 148, 3.1], [5812, 3, 591, 5.62], [229, 1, 81, 4.85], [2821, 3, 672, 2.32], [4232, 80, 159, 3.11], [5939, 3, 268, 2.92], [11671, 1, 314, 2.59], [5813, 3, 591, 5.3], [3495, 3, 969, 3.28], [5811, 3, 394, 5.6], [8898, 3, 288, 6.0], [12764, 2, 749, 3.24], [3980, 4, 485, 4.28], [7036, 1, 128, 2.65], [2108, 3, 180, 3.21], [105, 3, 175, 3.52], [13928, 2, 23, 4.68], [9690, 1, 63, 3.62], [5584, 3, 230, 6.0], [22573, 2, 71, 3.69], [3981, 3, 1690, 2.69], [1523, 1, 47, 3.17], [11886, 2, 193, 3.22], [10407, 10, 1171, 5.03], [192, 3, 939, 6.0], [1277, 1, 197, 2.68], [8897, 3, 288, 6.0], [10124, 1, 101, 5.96], [2991, 3, 162, 5.9], [10406, 10, 1765, 5.19], [20927, 1, 40, 2.71], [10147, 1, 68, 2.49], [11677, 1, 450, 4.02], [3334, 5, 183, 3.78], [2438, 1, 53, 4.99], [11678, 1, 448, 4.95], [1701, 2, 170, 2.84], [23275, 2, 71, 3.69], [7004, 1, 27, 2.49], [4001, 3, 821, 2.75], [23031, 3, 414, 4.49], [9373, 5, 86, 6.0], [1274, 1, 81, 5.57], [10516, 3, 591, 4.78], [5976, 1, 157, 5.59], [10181, 26, 139, 2.71], [3984, 3, 1690, 2.69], [9065, 2, 153, 2.35], [14041, 3, 603, 2.65], [8285, 2, 485, 2.64], [973, 3, 1195, 2.91], [7005, 1, 27, 2.49], [19924, 2, 64, 3.61], [9069, 1, 122, 4.05], [10409, 10, 1765, 5.13], [11812, 1, 120, 2.31], [1648, 1, 47, 4.01], [8188, 10, 744, 5.08], [942, 3, 296, 4.04]]</t>
+  </si>
+  <si>
+    <t>[[305, 2, 7, 0.88], [6935, 2, 23, 4.18], [2328, 2, 9, 1.85], [130, 1, 9, 1.36], [141, 2, 9, 0.95], [8650, 2, 9, 2.32], [8672, 2, 12, 1.94], [2327, 2, 9, 1.82], [362, 2, 7, 2.49], [6936, 2, 9, 3.12], [143, 2, 7, 0.93], [145, 2, 7, 0.96], [248, 1, 7, 0.69], [205, 2, 7, 1.24], [5493, 2, 7, 2.06], [417, 2, 7, 1.04], [146, 2, 7, 1.1], [75, 2, 7, 1.79], [11737, 2, 7, 1.56], [1124, 2, 12, 1.24], [523, 2, 7, 1.72], [2049, 3, 17, 0.77], [12721, 2, 11, 1.45], [1005, 2, 7, 2.48], [8853, 2, 7, 2.88], [206, 2, 7, 0.74], [326, 2, 9, 1.68], [8673, 2, 9, 2.2], [8915, 2, 9, 2.88], [144, 2, 7, 1.34], [11835, 2, 7, 0.69], [11739, 2, 9, 2.98], [88, 10, 17, 2.02], [434, 2, 7, 1.29], [142, 2, 9, 0.87], [151, 1, 9, 2.5], [435, 2, 7, 1.48], [8676, 2, 7, 1.29], [11234, 2, 9, 1.56], [6158, 2, 10, 1.5], [11738, 2, 7, 1.38], [11836, 2, 7, 1.36], [1413, 15, 7, 0.99], [7705, 2, 7, 3.18], [10574, 3, 10, 3.0], [944, 15, 7, 0.77], [7706, 2, 7, 3.18], [3, 2, 7, 2.44], [2054, 3, 7, 2.44], [2859, 15, 7, 2.64], [12720, 2, 7, 1.89], [74, 1, 7, 3.84], [3478, 2, 7, 3.43], [2055, 3, 7, 0.89], [10149, 3, 21, 1.49], [3429, 15, 7, 0.87], [6497, 1, 7, 0.85], [7004, 1, 7, 2.04], [60, 3, 8, 2.96], [411, 2, 7, 0.74], [11089, 1, 7, 0.79], [13928, 1, 7, 2.9], [2057, 3, 7, 1.25], [13028, 3, 7, 1.96], [7036, 1, 7, 1.74], [18964, 1, 7, 0.66], [6097, 80, 7, 5.0], [13260, 29, 7, 2.25], [8274, 3, 7, 1.56], [3893, 1, 7, 4.33], [13034, 3, 9, 2.28], [14037, 3, 7, 1.85], [94, 4, 7, 4.81], [6952, 1, 7, 3.06], [3891, 1, 7, 2.43], [1050, 2, 7, 0.66], [7707, 2, 7, 1.44], [1243, 2, 7, 1.83], [21793, 1, 8, 4.0], [1490, 1, 7, 3.85], [3889, 1, 7, 4.33], [11490, 1, 7, 1.68], [22317, 3, 8, 1.35], [7708, 2, 7, 2.62], [345, 3, 7, 2.43], [6098, 80, 7, 4.56], [7703, 2, 7, 2.62], [229, 1, 7, 3.98], [3495, 3, 21, 1.51], [6630, 3, 7, 4.62], [2991, 3, 7, 4.18], [13023, 3, 10, 1.04], [336, 15, 7, 0.98], [2805, 137, 10, 1.06], [11581, 29, 7, 1.89], [6098, 29, 7, 2.21], [6627, 3, 7, 0.85], [23275, 2, 7, 1.91], [13033, 3, 7, 2.22], [2331, 1, 7, 1.23], [13263, 29, 7, 0.83], [1049, 2, 7, 0.69], [247, 1, 7, 3.12], [1274, 1, 7, 2.89], [8635, 3, 7, 1.17], [6628, 3, 7, 0.9], [6097, 29, 7, 3.08], [114, 3, 7, 2.37], [5940, 3, 7, 0.87], [12229, 2, 7, 0.87], [20555, 2, 7, 0.75], [942, 3, 7, 2.26], [6496, 1, 7, 2.07], [11914, 1, 7, 0.79], [10406, 10, 12, 3.4], [8898, 3, 7, 2.51], [9372, 1, 7, 3.35], [192, 3, 12, 4.76], [10411, 10, 10, 3.4], [215, 4, 7, 4.5], [21269, 3, 7, 2.09], [3934, 5, 9, 1.11], [9760, 29, 7, 2.81], [186, 3, 12, 2.32], [11770, 1, 7, 2.06], [10407, 10, 10, 3.25], [5209, 3, 8, 0.96], [12373, 1, 11, 2.99], [10527, 3, 13, 2.94], [10408, 10, 10, 3.27], [5812, 3, 7, 2.49], [6360, 10, 15, 1.51], [21781, 2, 7, 0.9], [4940, 1, 7, 0.71], [7005, 1, 7, 1.56], [9082, 3, 24, 2.83], [12870, 1, 7, 3.35], [1886, 2, 7, 0.85], [19687, 1, 7, 2.33], [3891, 1, 124, 4.21], [7707, 2, 178, 3.22], [1243, 2, 85, 3.61], [21793, 1, 205, 5.78], [1490, 1, 49, 5.63], [3889, 1, 41, 6.0], [11490, 1, 91, 3.39], [22317, 3, 215, 3.13], [7708, 2, 178, 4.4], [345, 3, 251, 4.21], [6098, 80, 25, 6.0], [7703, 2, 178, 4.4], [229, 1, 82, 5.76], [3495, 3, 969, 3.28], [6630, 3, 80, 6.0], [2991, 3, 161, 5.96], [13023, 3, 603, 2.82], [2805, 137, 184, 2.84], [11581, 29, 60, 3.67], [6098, 29, 38, 3.99], [6627, 3, 79, 2.63], [23275, 2, 71, 3.69], [13033, 3, 597, 4.0], [2331, 1, 119, 3.01], [13263, 29, 73, 2.61], [247, 1, 87, 4.9], [1274, 1, 81, 4.67], [6628, 3, 50, 2.32], [6097, 29, 35, 4.86], [114, 3, 162, 3.98], [5940, 3, 90, 1.94], [12229, 2, 153, 2.65], [20555, 2, 58, 2.53], [942, 3, 296, 4.04], [6496, 1, 40, 3.85], [11914, 1, 87, 2.57], [10406, 10, 1765, 5.19], [8898, 3, 282, 4.29], [9372, 1, 229, 5.13], [192, 3, 939, 6.0], [10411, 10, 768, 5.19], [215, 4, 37, 6.0], [21269, 3, 294, 3.87], [3934, 5, 588, 2.89], [9760, 29, 24, 3.88], [186, 3, 440, 3.93], [11770, 1, 214, 3.84], [10407, 10, 1171, 5.03], [5209, 3, 377, 2.56], [12373, 1, 535, 4.76], [10527, 3, 870, 4.74], [10408, 10, 768, 5.06], [5812, 3, 588, 4.26], [6360, 10, 744, 3.3], [21781, 2, 52, 2.32], [4940, 1, 122, 2.49], [7005, 1, 27, 2.63], [9082, 3, 2464, 4.58], [12870, 1, 137, 5.13], [1886, 2, 158, 2.63], [19687, 1, 30, 4.11]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 11, 3.36], [141, 2, 7, 1.09], [589, 2, 10, 0.75], [2778, 2, 9, 1.33], [6936, 2, 13, 3.9], [2327, 2, 7, 1.37], [362, 2, 9, 1.39], [8648, 2, 7, 4.05], [11681, 2, 25, 4.17], [8650, 2, 9, 3.91], [326, 2, 9, 1.32], [205, 2, 9, 1.14], [1446, 2, 7, 0.92], [2328, 2, 9, 1.6], [305, 2, 9, 2.48], [2049, 3, 9, 0.89], [130, 1, 7, 2.31], [2775, 2, 9, 1.33], [8853, 2, 11, 4.03], [361, 2, 7, 1.11], [593, 2, 9, 0.96], [143, 2, 7, 1.27], [1429, 2, 7, 1.08], [206, 2, 9, 0.87], [523, 2, 7, 1.49], [7004, 1, 7, 1.71], [12350, 1, 7, 0.97], [7036, 1, 7, 2.73], [1124, 2, 9, 1.09], [151, 1, 7, 0.71], [990, 2, 7, 1.94], [5165, 1, 9, 1.87], [417, 2, 7, 1.06], [248, 1, 9, 0.76], [144, 2, 7, 2.69], [2050, 3, 7, 2.33], [201, 3, 7, 3.56], [6952, 1, 7, 3.04], [6097, 80, 7, 4.58], [345, 3, 9, 1.68], [11770, 1, 7, 0.92], [2055, 3, 7, 2.83], [3891, 1, 7, 1.46], [7084, 3, 9, 5.0], [2057, 3, 7, 2.83], [9372, 1, 7, 3.47], [5165, 2, 15, 2.8], [7005, 1, 7, 1.08], [3893, 1, 7, 1.34], [998, 2, 9, 1.81], [12870, 1, 7, 1.58], [10574, 3, 8, 1.91], [3334, 5, 7, 2.87], [6097, 29, 9, 5.0], [7885, 4, 7, 0.94], [6098, 80, 7, 2.68], [20927, 1, 7, 1.66], [346, 3, 7, 0.8], [11089, 1, 7, 1.67], [12344, 1, 7, 1.02], [10149, 3, 24, 1.49], [6158, 2, 7, 2.58], [3889, 1, 7, 1.42], [1492, 1, 9, 0.68], [432, 3, 7, 2.08], [11953, 1, 7, 0.79], [1519, 3, 16, 0.68], [4032, 29, 7, 1.0], [411, 2, 7, 1.04], [2423, 80, 7, 4.75], [972, 3, 9, 2.0], [5151, 2, 7, 2.02], [13034, 3, 9, 3.01], [229, 1, 7, 3.98], [3576, 25, 7, 2.73], [2331, 1, 7, 2.49], [346, 1, 9, 0.73], [13244, 1, 7, 0.9], [11426, 25, 7, 1.14], [11737, 2, 7, 0.94], [11583, 29, 9, 0.76], [3, 2, 7, 1.58], [5076, 1, 7, 1.65], [2160, 68, 7, 1.96], [11490, 1, 7, 1.37], [2805, 137, 7, 1.69], [12764, 2, 10, 0.99], [6494, 1, 7, 2.92], [8677, 3, 8, 2.13], [13893, 2, 7, 3.45], [1701, 2, 7, 3.04], [3575, 25, 7, 1.49], [11814, 1, 7, 0.92], [3577, 25, 7, 0.71], [1413, 15, 7, 0.83], [3478, 2, 7, 1.19], [11813, 1, 7, 3.17], [23238, 29, 7, 0.71], [75, 2, 7, 1.56], [2438, 2, 8, 3.47], [13023, 3, 8, 2.24], [4253, 1, 7, 2.98], [4033, 29, 7, 0.94], [9289, 29, 7, 2.91], [8283, 2, 8, 1.31], [11404, 2, 7, 0.83], [5812, 3, 7, 3.84], [23238, 25, 7, 0.71], [9967, 2, 7, 3.67], [9069, 1, 7, 1.81], [9971, 2, 7, 3.67], [2878, 1, 7, 0.85], [5584, 3, 7, 2.66], [1163, 3, 7, 2.79], [957, 2, 7, 1.75], [9491, 21, 13, 2.57], [114, 3, 7, 2.19], [21697, 3, 7, 0.87], [4586, 10, 16, 1.4], [10407, 10, 12, 3.17], [13249, 29, 7, 1.99], [823, 1, 7, 1.1], [289, 3, 7, 1.96], [9965, 2, 7, 4.13], [10609, 1, 7, 2.98], [336, 15, 7, 0.98], [9964, 2, 7, 1.83], [4076, 3, 7, 2.73], [7324, 1, 7, 1.69], [12647, 1, 7, 1.49], [1277, 1, 9, 1.06], [2528, 29, 7, 1.87], [3495, 3, 16, 1.44], [1523, 1, 7, 1.2], [4372, 10, 12, 0.97], [11425, 25, 7, 1.1], [13034, 3, 430, 5.43], [229, 1, 70, 5.4], [3576, 25, 87, 4.15], [2331, 1, 101, 3.91], [346, 1, 117, 2.71], [13244, 1, 43, 2.32], [11426, 25, 87, 3.0], [11737, 2, 49, 2.36], [11583, 29, 41, 2.76], [3, 2, 105, 3.0], [5076, 1, 112, 3.07], [2160, 68, 113, 3.38], [11490, 1, 93, 2.79], [2805, 137, 155, 3.11], [12764, 2, 539, 3.09], [6494, 1, 43, 4.34], [8677, 3, 254, 3.55], [13893, 2, 232, 4.86], [1701, 2, 140, 4.46], [3575, 25, 87, 2.91], [11814, 1, 193, 2.34], [3577, 25, 76, 2.13], [1413, 15, 86, 2.25], [3478, 2, 65, 2.61], [11813, 1, 267, 4.59], [23238, 29, 26, 2.04], [75, 2, 125, 2.98], [2438, 2, 538, 4.89], [13023, 3, 511, 3.66], [4253, 1, 145, 4.4], [4033, 29, 89, 2.36], [9289, 29, 54, 4.34], [8283, 2, 408, 2.73], [11404, 2, 90, 2.25], [5812, 3, 505, 5.26], [23238, 25, 51, 2.04], [9967, 2, 232, 5.09], [9069, 1, 85, 3.15], [9971, 2, 232, 5.09], [2878, 1, 70, 2.27], [5584, 3, 199, 4.08], [957, 2, 92, 3.17], [9491, 21, 1805, 4.0], [114, 3, 208, 3.61], [21697, 3, 156, 2.29], [4586, 10, 1264, 2.8], [10407, 10, 1001, 4.59], [13249, 29, 55, 3.41], [823, 1, 35, 2.52], [289, 3, 496, 3.37], [9965, 2, 232, 5.55], [10609, 1, 245, 4.4], [9964, 2, 232, 3.26], [4076, 3, 172, 4.15], [7324, 1, 52, 3.11], [12647, 1, 189, 2.91], [1277, 1, 170, 2.48], [2528, 29, 82, 3.29], [3495, 3, 829, 2.85], [1523, 1, 41, 2.62], [4372, 10, 945, 2.39], [11425, 25, 103, 2.52]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 12, 2.91], [305, 2, 7, 1.49], [2049, 3, 13, 0.85], [326, 2, 8, 1.03], [141, 2, 7, 0.75], [205, 2, 7, 1.21], [151, 1, 7, 0.89], [589, 2, 10, 0.81], [1776, 1, 7, 2.85], [146, 2, 7, 1.12], [206, 2, 7, 0.69], [8648, 2, 7, 2.52], [143, 2, 7, 1.12], [2328, 2, 7, 1.01], [990, 2, 9, 0.92], [6936, 2, 10, 2.57], [1777, 1, 7, 2.22], [8650, 2, 7, 3.66], [5151, 2, 7, 2.02], [2778, 2, 7, 1.06], [88, 10, 17, 1.75], [2050, 3, 7, 1.46], [10, 2, 11, 2.55], [10149, 3, 25, 3.26], [76, 2, 9, 2.75], [8649, 2, 7, 2.86], [8677, 3, 8, 3.08], [2054, 3, 9, 2.34], [412, 1, 7, 1.75], [13028, 3, 7, 0.96], [413, 1, 7, 1.64], [7004, 1, 7, 0.77], [411, 2, 7, 0.92], [10825, 21, 14, 0.72], [410, 1, 7, 1.17], [7084, 3, 7, 2.66], [307, 2, 7, 1.12], [3478, 2, 7, 2.36], [6158, 2, 10, 1.16], [3495, 3, 26, 2.49], [5081, 2, 7, 1.0], [167, 3, 9, 3.34], [7005, 1, 7, 0.77], [1492, 1, 7, 0.7], [7036, 1, 7, 2.48], [8676, 2, 7, 2.54], [9827, 3, 7, 1.38], [45, 2, 7, 3.67], [168, 3, 9, 1.09], [5812, 3, 8, 4.4], [57, 1, 7, 1.02], [94, 4, 7, 3.04], [1504, 2, 7, 1.33], [12870, 1, 7, 4.77], [335, 3, 18, 3.78], [418, 2, 7, 0.71], [2336, 3, 8, 1.74], [6097, 29, 7, 4.54], [6097, 80, 7, 4.54], [8853, 2, 14, 4.07], [346, 1, 7, 1.08], [490, 1, 7, 0.98], [1490, 1, 7, 0.87], [998, 2, 7, 2.5], [20927, 1, 7, 1.5], [95, 3, 21, 0.92], [79, 1, 7, 0.73], [9069, 1, 7, 2.1], [22316, 3, 7, 0.94], [6098, 29, 7, 4.85], [14017, 3, 7, 1.29], [6098, 80, 7, 4.85], [1070, 7, 13, 0.73], [346, 3, 8, 0.91], [8898, 3, 7, 3.98], [997, 2, 7, 2.54], [13034, 3, 8, 2.98], [9760, 29, 7, 1.15], [20498, 1, 7, 2.44], [192, 3, 18, 4.76], [336, 15, 7, 0.98], [5086, 1, 9, 1.64], [8945, 3, 8, 1.41], [7887, 4, 7, 0.71], [12350, 1, 7, 4.0], [5811, 3, 6, 2.16], [7567, 3, 7, 3.89], [22317, 3, 8, 1.35], [11085, 2, 7, 1.33], [12345, 1, 7, 1.96], [12924, 1, 9, 0.86], [5813, 3, 7, 1.98], [12349, 1, 7, 1.94], [229, 1, 7, 4.32], [972, 3, 8, 0.61], [995, 2, 7, 4.74], [9082, 3, 24, 1.17], [1622, 1, 10, 0.74], [8557, 3, 7, 1.53], [12352, 1, 7, 1.94], [20498, 3, 8, 2.4], [996, 2, 7, 4.42], [9691, 1, 7, 2.81], [12346, 1, 7, 1.96], [8104, 1, 7, 0.75], [3049, 3, 7, 4.11], [1080, 3, 7, 1.59], [14018, 3, 7, 0.96], [4076, 3, 7, 5.0], [3900, 3, 7, 3.23], [13023, 3, 8, 1.94], [1703, 2, 7, 2.72], [110, 4, 7, 1.81], [20486, 3, 8, 3.76], [5584, 3, 7, 3.61], [9613, 1, 7, 0.87], [2424, 80, 7, 4.51], [35, 1, 7, 2.02], [972, 1, 7, 0.92], [215, 4, 7, 5.0], [9372, 1, 7, 1.55], [1414, 15, 7, 0.81], [9081, 3, 12, 3.31], [20486, 1, 9, 2.87], [33, 1, 7, 1.42], [114, 3, 7, 0.92], [6497, 1, 7, 1.93], [39, 1, 7, 1.06], [11510, 3, 8, 1.98], [823, 1, 7, 0.69], [3047, 3, 7, 1.06], [1339, 3, 16, 0.73], [2854, 21, 13, 0.84], [18, 1, 7, 0.92], [13893, 2, 7, 3.45], [10529, 29, 7, 2.85], [9069, 1, 96, 3.66], [22316, 3, 292, 2.09], [6098, 29, 17, 5.62], [14017, 3, 154, 2.89], [6098, 80, 35, 5.62], [1070, 7, 467, 2.4], [346, 3, 569, 2.06], [8898, 3, 221, 5.63], [997, 2, 217, 3.69], [13034, 3, 459, 4.14], [9760, 29, 66, 2.31], [20498, 1, 77, 3.6], [192, 3, 1288, 5.9], [5086, 1, 144, 3.79], [8945, 3, 544, 2.57], [12350, 1, 563, 5.17], [5811, 3, 459, 3.82], [22317, 3, 248, 2.52], [11085, 2, 431, 2.5], [12345, 1, 563, 3.12], [12924, 1, 42, 2.69], [5813, 3, 459, 3.64], [12349, 1, 563, 3.1], [229, 1, 57, 5.47], [972, 3, 552, 1.78], [995, 2, 217, 5.9], [9082, 3, 1955, 2.92], [8557, 3, 159, 3.18], [12352, 1, 563, 3.1], [20498, 3, 459, 3.56], [996, 2, 217, 5.57], [9691, 1, 59, 4.46], [12346, 1, 563, 3.12], [8104, 1, 144, 1.78], [3049, 3, 108, 5.27], [1080, 3, 122, 2.74], [14018, 3, 154, 2.57], [4076, 3, 155, 6.0], [13023, 3, 459, 4.1], [1703, 2, 149, 3.87], [110, 4, 190, 2.97], [20486, 3, 465, 4.92], [5584, 3, 197, 4.77], [9613, 1, 58, 2.03], [2424, 80, 152, 5.66], [35, 1, 103, 3.18], [972, 1, 92, 2.08], [215, 4, 34, 6.0], [9372, 1, 210, 2.71], [1414, 15, 92, 1.97], [9081, 3, 423, 4.47], [20486, 1, 78, 4.52], [33, 1, 103, 2.58], [114, 3, 225, 2.07], [6497, 1, 34, 3.09], [39, 1, 103, 2.22], [11510, 3, 536, 3.15], [823, 1, 38, 1.85], [3047, 3, 248, 2.22], [2854, 21, 983, 2.0], [18, 1, 22, 1.69], [13893, 2, 249, 4.61], [10529, 29, 37, 4.0]]</t>
   </si>
 </sst>
 </file>
@@ -531,7 +531,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>3301</v>
+        <v>3308</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -551,7 +551,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>3302</v>
+        <v>3312</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -571,7 +571,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>3303</v>
+        <v>3310</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -591,7 +591,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>3304</v>
+        <v>3303</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -611,7 +611,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -651,7 +651,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>3307</v>
+        <v>3302</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -671,7 +671,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>3308</v>
+        <v>3301</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -691,7 +691,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>3309</v>
+        <v>3311</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
@@ -711,7 +711,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>3310</v>
+        <v>3307</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
@@ -731,7 +731,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>3311</v>
+        <v>3305</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
@@ -751,7 +751,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>3312</v>
+        <v>3309</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>

--- a/QD_upload.xlsx
+++ b/QD_upload.xlsx
@@ -70,82 +70,82 @@
     <t>SakkarahQD</t>
   </si>
   <si>
-    <t>11/12/2025 12:39</t>
-  </si>
-  <si>
-    <t>13/12/2025 23:59</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 6, 0.73], [305, 2, 4, 0.25], [3, 2, 4, 0.47], [326, 2, 4, 0.54], [589, 2, 5, 0.37], [6935, 2, 8, 1.27], [205, 2, 4, 0.37], [143, 2, 4, 0.58], [75, 2, 5, 0.87], [144, 2, 4, 0.49], [12721, 2, 6, 0.72], [145, 2, 4, 0.52], [8915, 2, 6, 0.2], [1776, 1, 4, 0.61], [146, 2, 4, 0.52], [2778, 2, 5, 0.2], [206, 2, 4, 0.2], [6936, 2, 5, 1.17], [1777, 1, 4, 0.74], [151, 1, 4, 0.37], [8648, 2, 4, 1.52], [2328, 2, 4, 0.39], [8650, 2, 4, 1.9], [5151, 2, 4, 1.02], [2050, 3, 5, 0.41], [7886, 4, 4, 0.45], [141, 2, 4, 0.53], [248, 1, 4, 0.2], [88, 10, 10, 0.45], [74, 1, 4, 1.53], [2054, 3, 4, 0.54], [2991, 3, 4, 2.05], [2057, 3, 5, 0.47], [7004, 1, 4, 0.37], [1446, 2, 4, 0.2], [1492, 1, 4, 1.22], [362, 2, 4, 0.48], [2055, 3, 4, 0.42], [76, 2, 4, 0.84], [8649, 2, 4, 1.9], [345, 3, 4, 0.57], [7005, 1, 4, 0.38], [3889, 1, 4, 0.2], [11234, 2, 6, 0.2], [10825, 21, 8, 1.28], [7084, 3, 4, 2.03], [5081, 2, 4, 0.69], [12870, 1, 4, 2.33], [7036, 1, 4, 0.43], [10149, 3, 15, 0.99], [3478, 2, 4, 1.03], [1654, 2, 4, 0.54], [94, 4, 4, 0.4], [3891, 1, 4, 0.27], [167, 3, 5, 1.15], [432, 3, 5, 0.62], [33, 1, 4, 0.83], [9827, 3, 4, 0.2], [411, 2, 4, 0.37], [168, 3, 4, 1.23], [8677, 3, 6, 0.65], [79, 1, 4, 0.2], [3893, 1, 4, 0.2], [23, 1, 4, 0.67], [22247, 2, 6, 1.15], [201, 3, 4, 0.57], [1490, 1, 4, 0.2], [1124, 2, 5, 0.2], [5812, 3, 6, 0.81], [96, 11, 17, 0.38], [11737, 2, 4, 0.2], [9760, 29, 4, 0.74], [35, 1, 4, 0.83], [6158, 2, 6, 0.51], [335, 3, 9, 0.4], [12225, 1, 4, 0.43], [412, 1, 4, 1.14], [346, 1, 4, 0.56], [20927, 1, 4, 0.49], [229, 1, 4, 2.57], [25, 1, 4, 0.76], [1767, 25, 4, 0.59], [45, 2, 4, 0.64], [998, 2, 5, 1.52], [3980, 4, 5, 1.25], [413, 1, 4, 1.07], [21269, 3, 4, 1.6], [346, 3, 4, 0.51], [3495, 3, 15, 1.31], [95, 3, 11, 0.54], [856, 1, 4, 0.36], [1766, 25, 4, 0.56], [5946, 1, 4, 1.03], [490, 1, 4, 0.53], [997, 2, 4, 0.77], [8898, 3, 4, 0.75], [34, 1, 4, 0.38], [1070, 7, 9, 0.46], [9372, 1, 4, 1.74], [9691, 1, 4, 1.27], [9690, 1, 4, 0.97], [11954, 1, 4, 0.2], [20498, 1, 4, 0.48], [14017, 3, 4, 1.04], [974, 3, 5, 0.88], [418, 2, 4, 0.46], [14037, 3, 4, 0.44], [22317, 3, 4, 0.51], [972, 3, 5, 0.65], [20498, 3, 5, 1.08], [1091, 1, 4, 0.66], [9828, 3, 4, 0.46], [8274, 3, 4, 0.46], [38, 1, 4, 0.38], [5584, 3, 4, 1.19], [5811, 3, 4, 1.81], [1414, 15, 4, 0.42], [12350, 1, 4, 0.53], [5813, 3, 4, 1.51], [2991, 1, 4, 0.52], [24, 1, 4, 1.04], [3048, 3, 4, 1.24], [110, 4, 4, 0.38], [1080, 3, 4, 0.8], [13034, 3, 5, 1.09], [8104, 1, 4, 0.44], [13260, 29, 4, 0.73], [1767, 2, 4, 0.59], [336, 15, 4, 0.38], [11811, 1, 4, 0.94], [955, 2, 4, 0.47], [8635, 3, 4, 0.5], [39, 1, 4, 0.59], [10780, 10, 4, 0.98], [2878, 1, 4, 0.61], [9082, 3, 15, 0.83], [3981, 3, 10, 1.42], [4203, 1, 4, 0.55], [8672, 2, 206, 4.48], [305, 2, 125, 2.8], [3, 2, 89, 2.67], [326, 2, 58, 3.44], [6935, 2, 206, 4.81], [205, 2, 80, 2.49], [143, 2, 108, 2.86], [75, 2, 107, 3.41], [144, 2, 109, 2.71], [12721, 2, 204, 3.5], [145, 2, 109, 2.76], [1776, 1, 80, 2.94], [146, 2, 109, 2.77], [2778, 2, 114, 2.87], [6936, 2, 206, 4.28], [1777, 1, 93, 3.16], [151, 1, 49, 2.48], [8648, 2, 161, 5.34], [2328, 2, 109, 3.35], [8650, 2, 161, 6.0], [5151, 2, 17, 4.32], [2050, 3, 260, 3.41], [141, 2, 132, 3.42], [248, 1, 35, 2.49], [88, 10, 403, 5.17], [74, 1, 144, 5.34], [2054, 3, 408, 2.35], [2991, 3, 116, 5.98], [2057, 3, 346, 2.68], [7004, 1, 51, 2.49], [1446, 2, 98, 3.24], [1492, 1, 32, 3.65], [362, 2, 90, 3.59], [2055, 3, 346, 2.6], [76, 2, 93, 3.35], [8649, 2, 161, 6.0], [345, 3, 219, 2.85], [7005, 1, 51, 2.5], [3889, 1, 91, 2.61], [11234, 2, 134, 3.07], [10825, 21, 270, 4.0], [5081, 2, 137, 3.07], [12870, 1, 99, 6.0], [7036, 1, 92, 3.55], [10149, 3, 646, 3.49], [1654, 2, 79, 2.34], [94, 4, 87, 3.91], [3891, 1, 91, 3.93], [167, 3, 164, 4.08], [432, 3, 221, 2.95], [33, 1, 100, 3.25], [9827, 3, 63, 2.69], [411, 2, 80, 2.49], [168, 3, 345, 3.67], [8677, 3, 214, 3.07], [79, 1, 35, 2.47], [3893, 1, 91, 3.93], [23, 1, 81, 3.04], [22247, 2, 204, 4.02], [201, 3, 219, 2.85], [1490, 1, 37, 2.48], [1124, 2, 135, 3.24]]</t>
-  </si>
-  <si>
-    <t>[[2327, 2, 4, 0.52], [305, 2, 4, 0.45], [6935, 2, 5, 1.69], [2778, 2, 4, 0.2], [589, 2, 5, 0.2], [144, 2, 4, 0.54], [130, 1, 4, 0.45], [8915, 2, 5, 0.46], [143, 2, 4, 0.44], [2328, 2, 4, 0.26], [6936, 2, 4, 1.66], [8648, 2, 4, 1.15], [2775, 2, 4, 0.2], [205, 2, 4, 0.37], [8650, 2, 4, 1.53], [593, 2, 5, 0.4], [326, 2, 4, 0.72], [146, 2, 4, 0.57], [145, 2, 4, 0.5], [5493, 2, 4, 0.44], [3840, 1, 5, 0.29], [7036, 1, 4, 1.2], [2049, 3, 6, 0.21], [2776, 2, 4, 0.2], [88, 10, 9, 1.01], [141, 2, 5, 0.39], [7004, 1, 4, 1.24], [206, 2, 4, 0.37], [9760, 29, 4, 0.2], [990, 2, 4, 0.27], [1007, 2, 4, 0.2], [362, 2, 4, 0.52], [2055, 3, 4, 0.56], [2912, 1, 4, 0.77], [3893, 1, 4, 0.2], [142, 2, 4, 0.4], [2057, 3, 4, 0.56], [12870, 1, 4, 1.68], [9372, 1, 4, 1.84], [10993, 2, 4, 0.6], [2050, 3, 4, 0.56], [3889, 1, 4, 0.25], [2054, 3, 4, 0.2], [7084, 3, 4, 1.07], [523, 2, 4, 0.38], [2991, 3, 4, 1.1], [7886, 4, 5, 0.44], [10, 2, 4, 0.36], [3891, 1, 4, 0.2], [7573, 1, 9, 1.95], [1622, 1, 4, 0.2], [10149, 3, 15, 1.21], [5208, 3, 4, 0.46], [75, 2, 4, 1.0], [20927, 1, 4, 1.26], [3, 2, 5, 0.62], [11234, 2, 5, 0.75], [997, 2, 4, 1.26], [1886, 2, 4, 0.2], [12721, 2, 4, 1.46], [346, 3, 5, 0.21], [22247, 2, 5, 1.14], [996, 2, 4, 0.6], [229, 1, 4, 1.05], [998, 2, 4, 0.81], [94, 4, 4, 0.9], [2912, 2, 7, 1.24], [972, 3, 5, 0.51], [9491, 21, 12, 0.22], [35, 1, 4, 1.29], [76, 2, 5, 0.6], [413, 1, 4, 1.38], [33, 1, 4, 0.93], [83, 2, 4, 0.95], [13928, 1, 4, 0.7], [5076, 1, 4, 0.97], [2805, 137, 4, 1.33], [5209, 3, 5, 0.96], [8104, 1, 5, 0.59], [346, 1, 4, 0.43], [8676, 2, 4, 0.97], [7887, 4, 4, 0.97], [38, 1, 4, 1.13], [8898, 3, 4, 2.55], [12212, 29, 4, 0.47], [3495, 3, 10, 0.92], [84, 2, 4, 0.9], [34, 1, 4, 1.07], [11490, 1, 4, 0.46], [10407, 10, 7, 1.19], [632, 11, 13, 0.45], [11770, 1, 4, 0.6], [13928, 2, 4, 0.55], [995, 2, 4, 1.64], [11772, 1, 4, 0.2], [9690, 1, 4, 0.47], [411, 2, 4, 0.48], [39, 1, 4, 1.1], [9691, 1, 4, 0.72], [1703, 2, 4, 0.83], [11953, 1, 4, 0.2], [82, 2, 4, 0.82], [5584, 3, 4, 1.02], [12764, 2, 5, 0.99], [13893, 2, 4, 1.17], [7567, 3, 4, 1.08], [74, 1, 4, 0.99], [10410, 10, 9, 1.66], [972, 1, 4, 0.53], [5164, 1, 4, 1.95], [21269, 3, 4, 0.99], [1523, 1, 4, 0.6], [23961, 3, 4, 1.88], [2331, 1, 4, 0.64], [13023, 3, 5, 0.8], [10408, 10, 5, 1.84], [4253, 1, 4, 0.58], [1492, 1, 4, 0.45], [4076, 3, 4, 1.42], [6097, 80, 4, 0.76], [6805, 1, 4, 0.51], [12229, 2, 4, 0.49], [2438, 2, 5, 1.64], [13034, 3, 4, 1.2], [3429, 15, 4, 0.44], [3047, 3, 4, 1.14], [21059, 1, 4, 0.82], [8283, 2, 5, 0.68], [1243, 2, 4, 1.13], [3576, 29, 4, 0.42], [3430, 15, 4, 0.95], [2436, 4, 4, 0.56], [8674, 2, 4, 0.97], [6097, 29, 4, 0.76], [10780, 10, 4, 1.15], [19931, 1, 4, 1.26], [11812, 1, 4, 0.46], [2327, 2, 125, 3.09], [305, 2, 122, 2.96], [6935, 2, 232, 6.0], [2778, 2, 131, 3.06], [589, 2, 127, 3.01], [144, 2, 125, 3.13], [8915, 2, 188, 2.44], [143, 2, 123, 2.95], [2328, 2, 125, 3.53], [6936, 2, 232, 5.4], [8648, 2, 186, 5.21], [2775, 2, 131, 3.06], [205, 2, 89, 2.31], [8650, 2, 186, 4.94], [593, 2, 189, 3.07], [326, 2, 30, 4.87], [146, 2, 125, 3.18], [145, 2, 125, 3.06], [5493, 2, 107, 2.48], [3840, 1, 142, 3.59], [7036, 1, 107, 5.16], [2049, 3, 181, 2.85], [2776, 2, 131, 3.27], [88, 10, 467, 4.23], [141, 2, 130, 2.86], [206, 2, 36, 1.72], [9760, 29, 74, 2.87], [362, 2, 118, 3.09], [2055, 3, 158, 2.07], [2912, 1, 44, 4.46], [3893, 1, 104, 2.85], [142, 2, 153, 2.39], [2057, 3, 158, 2.07], [12870, 1, 114, 5.33], [9372, 1, 188, 5.31], [2050, 3, 158, 2.07], [3889, 1, 104, 3.51], [2054, 3, 267, 2.38], [7084, 3, 109, 3.69], [523, 2, 153, 2.36], [2991, 3, 135, 5.78], [10, 2, 103, 2.52], [3891, 1, 104, 2.9], [7573, 1, 306, 5.44], [1622, 1, 53, 2.97], [10149, 3, 735, 4.24], [75, 2, 120, 4.02], [3, 2, 101, 3.46], [11234, 2, 152, 4.44], [997, 2, 198, 4.46], [1886, 2, 130, 3.17], [12721, 2, 233, 4.44], [346, 3, 525, 2.95], [22247, 2, 233, 4.41], [996, 2, 193, 5.27], [229, 1, 70, 3.65], [998, 2, 198, 3.64], [94, 4, 100, 4.24], [2912, 2, 323, 4.81], [972, 3, 493, 3.68], [9491, 21, 1763, 3.05], [35, 1, 73, 3.95], [76, 2, 91, 3.23]]</t>
-  </si>
-  <si>
-    <t>[[11685, 2, 4, 1.87], [6935, 2, 5, 1.34], [130, 1, 4, 0.2], [326, 2, 5, 0.7], [8648, 2, 4, 0.96], [144, 2, 4, 0.47], [2327, 2, 5, 0.54], [589, 2, 5, 0.2], [593, 2, 5, 0.52], [143, 2, 4, 1.01], [205, 2, 5, 0.51], [11681, 2, 5, 1.37], [305, 2, 4, 0.51], [2328, 2, 4, 0.51], [141, 2, 4, 0.53], [6936, 2, 4, 1.85], [151, 1, 4, 0.38], [2778, 2, 4, 0.2], [2049, 3, 8, 0.41], [146, 2, 4, 0.57], [88, 10, 10, 0.19], [615, 2, 4, 0.87], [9507, 3, 5, 0.2], [145, 2, 4, 0.48], [7036, 1, 4, 1.23], [1446, 2, 4, 0.61], [8853, 2, 4, 1.2], [362, 2, 4, 0.5], [3893, 1, 4, 0.7], [2055, 3, 5, 1.73], [75, 2, 4, 0.9], [417, 2, 4, 0.55], [11737, 2, 5, 0.2], [2050, 3, 4, 1.69], [12870, 1, 4, 0.7], [523, 2, 4, 0.53], [159, 3, 6, 0.24], [2057, 3, 4, 1.78], [142, 2, 4, 0.52], [2991, 3, 4, 1.1], [997, 2, 4, 0.78], [7084, 3, 4, 0.28], [9760, 29, 4, 0.2], [3982, 3, 12, 1.18], [11739, 2, 4, 0.73], [996, 2, 4, 0.55], [6158, 2, 5, 0.2], [998, 2, 4, 0.69], [98, 11, 10, 0.54], [84, 2, 4, 0.4], [9372, 1, 4, 2.31], [7885, 4, 4, 0.4], [10388, 2, 4, 1.08], [8672, 2, 5, 0.73], [972, 3, 4, 2.01], [8898, 3, 4, 3.1], [2912, 1, 4, 0.76], [3980, 4, 4, 1.2], [410, 1, 5, 0.4], [9491, 21, 10, 0.51], [10386, 2, 4, 1.51], [1492, 1, 4, 0.45], [13928, 1, 5, 0.2], [995, 2, 4, 1.16], [22316, 3, 4, 0.51], [22247, 2, 4, 1.1], [8677, 3, 4, 0.9], [3981, 3, 13, 1.15], [308, 1, 5, 0.95], [13893, 2, 4, 1.13], [2912, 2, 5, 1.77], [229, 1, 4, 0.7], [33, 1, 4, 1.83], [10631, 2, 4, 1.98], [11953, 1, 4, 0.47], [11490, 1, 4, 0.55], [35, 1, 4, 1.33], [159, 1, 4, 0.51], [7886, 4, 4, 0.49], [11770, 1, 4, 0.2], [22317, 3, 5, 0.51], [10407, 10, 6, 1.35], [10780, 10, 4, 1.67], [10410, 10, 6, 1.31], [1413, 15, 4, 0.53], [10149, 3, 13, 1.48], [6497, 1, 4, 0.45], [335, 3, 10, 0.39], [9691, 1, 4, 0.89], [74, 1, 5, 0.62], [10387, 2, 4, 0.95], [3478, 2, 4, 1.69], [972, 1, 4, 2.01], [12271, 2, 4, 1.51], [8897, 3, 4, 3.6], [345, 3, 4, 0.51], [9690, 1, 4, 1.09], [9971, 2, 4, 0.69], [159, 16, 4, 0.49], [2331, 1, 4, 0.88], [9082, 3, 18, 0.83], [3048, 3, 4, 0.92], [37, 1, 4, 0.66], [4076, 3, 4, 0.85], [11085, 2, 4, 1.27], [34, 1, 4, 0.43], [23611, 3, 4, 0.42], [7704, 2, 4, 1.64], [12721, 2, 4, 0.97], [11404, 2, 4, 0.43], [1163, 3, 4, 0.59], [20498, 3, 5, 0.99], [1523, 1, 4, 0.8], [11510, 3, 5, 0.5], [10936, 2, 4, 1.7], [45, 2, 4, 0.46], [4001, 3, 7, 1.13], [12764, 2, 5, 0.84], [9965, 2, 4, 0.69], [105, 3, 4, 0.51], [9964, 2, 4, 0.69], [38, 1, 4, 0.66], [215, 4, 4, 0.77], [1895, 3, 4, 0.74], [12858, 1, 4, 0.48], [10408, 10, 5, 1.64], [8635, 3, 4, 1.01], [5812, 3, 4, 0.51], [10411, 10, 5, 1.71], [11738, 2, 4, 0.88], [12212, 29, 4, 0.45], [2805, 137, 5, 0.47], [8659, 1, 4, 1.01], [11812, 1, 4, 0.46], [192, 3, 9, 1.01], [10093, 3, 9, 0.9], [2438, 2, 5, 1.32], [11685, 2, 200, 5.3], [6935, 2, 208, 4.76], [8648, 2, 165, 4.65], [144, 2, 52, 3.47], [2327, 2, 111, 2.93], [589, 2, 113, 2.55], [593, 2, 167, 3.17], [143, 2, 109, 3.38], [205, 2, 38, 2.88], [11681, 2, 200, 5.29], [305, 2, 108, 2.88], [2328, 2, 111, 2.89], [141, 2, 114, 3.53], [6936, 2, 208, 6.0], [151, 1, 35, 1.93], [2778, 2, 115, 3.01], [2049, 3, 406, 2.82], [146, 2, 111, 3.51], [88, 10, 424, 2.78], [615, 2, 80, 3.55], [145, 2, 78, 3.77], [7036, 1, 93, 4.22], [1446, 2, 112, 3.99], [8853, 2, 208, 4.32], [362, 2, 104, 2.86], [3893, 1, 108, 2.83], [2055, 3, 336, 5.36], [75, 2, 127, 3.17], [417, 2, 114, 2.95], [11737, 2, 20, 3.21], [2050, 3, 336, 5.27], [12870, 1, 119, 5.14], [523, 2, 114, 3.0], [159, 3, 249, 3.24], [2057, 3, 336, 5.47], [142, 2, 114, 2.89], [2991, 3, 119, 6.0], [997, 2, 208, 2.94], [7084, 3, 96, 3.38], [9760, 29, 50, 2.81], [3982, 3, 578, 4.3], [11739, 2, 30, 2.61], [996, 2, 208, 2.5], [6158, 2, 194, 3.19], [998, 2, 208, 2.77], [98, 11, 610, 2.85], [9372, 1, 196, 5.89], [10388, 2, 187, 3.58], [8672, 2, 210, 4.63], [8898, 3, 205, 6.0], [2912, 1, 45, 3.77], [3980, 4, 418, 3.8], [9491, 21, 1854, 2.33], [10386, 2, 158, 4.35], [1492, 1, 32, 2.31], [13928, 1, 35, 3.76], [995, 2, 208, 3.67], [22316, 3, 274, 2.42], [22247, 2, 248, 3.56], [8677, 3, 216, 3.67], [3981, 3, 1397, 3.56], [308, 1, 118, 5.23], [13893, 2, 231, 6.0]]</t>
-  </si>
-  <si>
-    <t>[[326, 2, 4, 0.47], [6935, 2, 8, 0.72], [2049, 3, 8, 0.49], [362, 2, 4, 1.2], [589, 2, 6, 0.2], [141, 2, 4, 0.54], [75, 2, 4, 0.99], [130, 1, 4, 0.5], [3, 2, 4, 0.2], [1776, 1, 4, 0.58], [205, 2, 4, 0.56], [8672, 2, 6, 0.97], [2778, 2, 5, 0.2], [6936, 2, 5, 1.27], [7886, 4, 4, 0.41], [593, 2, 5, 0.36], [305, 2, 4, 0.48], [206, 2, 4, 0.2], [151, 1, 4, 0.44], [1777, 1, 4, 0.93], [8648, 2, 5, 0.77], [2328, 2, 4, 0.2], [88, 10, 10, 0.83], [11681, 2, 5, 2.33], [990, 2, 4, 0.2], [8650, 2, 4, 1.15], [5151, 2, 4, 0.9], [412, 1, 4, 0.91], [2050, 3, 5, 0.66], [144, 2, 4, 0.5], [2991, 3, 4, 1.6], [76, 2, 4, 1.11], [345, 3, 5, 0.2], [10149, 3, 15, 1.32], [57, 1, 5, 0.2], [22247, 2, 5, 1.06], [146, 2, 4, 0.56], [2054, 3, 4, 1.36], [45, 2, 4, 1.12], [7004, 1, 4, 0.47], [417, 2, 4, 0.29], [143, 2, 4, 0.46], [201, 3, 5, 0.42], [21793, 1, 4, 1.03], [167, 3, 5, 1.09], [413, 1, 4, 0.35], [2055, 3, 4, 0.94], [168, 3, 5, 0.74], [74, 1, 4, 0.84], [346, 1, 4, 0.2], [7084, 3, 4, 0.88], [11234, 2, 5, 0.2], [12721, 2, 6, 0.96], [308, 1, 5, 2.44], [10, 2, 4, 0.42], [335, 3, 11, 0.39], [7036, 1, 4, 1.71], [3495, 3, 13, 0.92], [5081, 2, 4, 0.2], [13028, 3, 4, 0.5], [10825, 21, 8, 0.37], [410, 1, 4, 0.2], [12870, 1, 4, 2.33], [8649, 2, 4, 1.15], [11404, 2, 4, 0.43], [79, 1, 4, 0.38], [3889, 1, 4, 0.52], [96, 11, 14, 0.46], [1492, 1, 4, 0.2], [23, 1, 4, 1.23], [5208, 3, 6, 0.19], [3893, 1, 5, 0.2], [9827, 3, 4, 0.2], [1504, 2, 5, 0.2], [94, 4, 4, 0.51], [13260, 29, 4, 0.46], [7005, 1, 4, 0.49], [5812, 3, 5, 1.22], [3891, 1, 4, 0.25], [1490, 1, 5, 0.2], [411, 2, 4, 0.56], [25, 1, 4, 0.95], [12353, 1, 5, 0.71], [33, 1, 4, 0.66], [21269, 3, 4, 1.45], [12349, 1, 4, 2.08], [998, 2, 4, 0.69], [5086, 1, 5, 1.11], [9069, 1, 4, 1.62], [7567, 3, 4, 1.62], [229, 1, 4, 2.57], [3980, 4, 4, 1.31], [2878, 1, 5, 0.54], [20927, 1, 4, 0.61], [346, 3, 5, 0.21], [35, 1, 4, 0.46], [1703, 2, 4, 1.38], [9691, 1, 4, 1.4], [5209, 3, 5, 0.19], [997, 2, 4, 0.6], [11914, 1, 4, 0.2], [14037, 3, 4, 0.36], [8274, 3, 4, 1.09], [5584, 3, 4, 0.44], [5660, 2, 5, 1.05], [11811, 1, 4, 1.0], [1070, 7, 9, 0.39], [159, 3, 6, 0.27], [1519, 3, 12, 0.39], [24, 1, 4, 0.95], [8898, 3, 4, 2.67], [996, 2, 4, 1.21], [1091, 1, 4, 0.2], [23961, 3, 4, 0.5], [1124, 2, 5, 0.46], [13034, 3, 5, 1.26], [9081, 3, 7, 1.28], [12661, 1, 4, 2.1], [952, 4, 4, 2.39], [27, 1, 4, 1.23], [8945, 3, 5, 2.49], [1413, 15, 4, 0.62], [22317, 3, 5, 0.51], [336, 15, 4, 0.2], [10529, 29, 4, 1.44], [9372, 1, 4, 0.39], [1163, 3, 4, 0.47], [12225, 1, 4, 0.58], [9082, 3, 18, 0.67], [6097, 29, 4, 0.59], [4203, 1, 4, 0.53], [9760, 29, 4, 0.45], [66, 16, 4, 0.45], [2109, 3, 9, 0.48], [8635, 3, 4, 0.6], [12346, 1, 4, 1.0], [5811, 3, 4, 0.36], [2104, 3, 6, 1.13], [326, 2, 72, 2.63], [6935, 2, 262, 4.2], [2049, 3, 508, 2.05], [362, 2, 130, 3.47], [589, 2, 71, 2.46], [141, 2, 123, 2.64], [75, 2, 114, 3.61], [3, 2, 97, 2.47], [1776, 1, 89, 2.72], [205, 2, 50, 1.98], [8672, 2, 223, 4.57], [2778, 2, 123, 2.71], [6936, 2, 223, 4.33], [7886, 4, 66, 1.79], [593, 2, 180, 2.48], [305, 2, 115, 2.53], [151, 1, 53, 2.46], [1777, 1, 100, 3.38], [8648, 2, 176, 4.86], [2328, 2, 119, 2.59], [88, 10, 442, 4.1], [11681, 2, 214, 6.0], [990, 2, 41, 2.81], [8650, 2, 176, 4.9], [5151, 2, 19, 2.89], [412, 1, 66, 3.33], [2050, 3, 373, 2.86], [144, 2, 119, 2.59], [2991, 3, 127, 5.29], [76, 2, 85, 3.91], [345, 3, 235, 3.47], [10149, 3, 676, 4.91], [57, 1, 59, 2.35], [22247, 2, 221, 4.15], [146, 2, 119, 3.84], [45, 2, 85, 4.3], [7004, 1, 55, 1.93], [417, 2, 122, 4.03], [143, 2, 117, 2.5], [201, 3, 235, 4.71], [21793, 1, 190, 5.28], [167, 3, 178, 3.66], [413, 1, 68, 2.39], [2055, 3, 368, 4.35], [168, 3, 321, 3.03], [74, 1, 155, 4.17], [346, 1, 125, 2.46], [11234, 2, 145, 2.91], [12721, 2, 221, 3.58], [308, 1, 132, 6.0], [10, 2, 63, 4.58], [335, 3, 1056, 5.08], [7036, 1, 100, 4.49], [3495, 3, 754, 3.21], [5081, 2, 150, 2.65], [13028, 3, 116, 2.58], [10825, 21, 505, 2.33], [410, 1, 84, 2.39], [12870, 1, 108, 5.93], [8649, 2, 176, 4.62], [11404, 2, 73, 2.09], [79, 1, 22, 1.5]]</t>
-  </si>
-  <si>
-    <t>[[88, 10, 10, 0.5], [8915, 2, 5, 0.46], [589, 2, 6, 0.2], [2327, 2, 4, 0.52], [2778, 2, 4, 0.2], [6935, 2, 6, 1.69], [2328, 2, 4, 0.76], [5493, 2, 4, 0.44], [305, 2, 4, 0.45], [615, 2, 4, 0.87], [326, 2, 4, 1.22], [6936, 2, 4, 1.66], [8650, 2, 4, 2.03], [8648, 2, 4, 1.65], [1446, 2, 4, 0.28], [7004, 1, 4, 1.24], [2049, 3, 5, 0.21], [593, 2, 5, 0.4], [143, 2, 4, 0.94], [205, 2, 4, 0.37], [10, 2, 5, 0.92], [144, 2, 4, 1.04], [7036, 1, 4, 1.2], [94, 4, 4, 0.4], [990, 2, 4, 0.27], [3893, 1, 4, 0.2], [146, 2, 4, 1.07], [141, 2, 4, 0.39], [12224, 1, 4, 0.46], [3891, 1, 4, 0.2], [362, 2, 4, 0.52], [206, 2, 4, 0.37], [2055, 3, 4, 0.56], [75, 2, 4, 1.24], [5208, 3, 4, 0.46], [3889, 1, 5, 0.25], [7886, 4, 5, 0.44], [10993, 2, 4, 0.6], [11234, 2, 5, 0.75], [2054, 3, 4, 1.0], [7005, 1, 4, 0.58], [12870, 1, 4, 1.68], [7084, 3, 4, 1.07], [3980, 4, 5, 1.21], [10149, 3, 13, 1.21], [145, 2, 4, 1.0], [2050, 3, 4, 0.56], [2912, 1, 4, 0.77], [5165, 1, 4, 1.02], [8672, 2, 4, 1.19], [20927, 1, 4, 1.26], [998, 2, 4, 0.31], [9760, 29, 4, 0.2], [972, 3, 5, 0.51], [3, 2, 4, 0.62], [3495, 3, 11, 0.92], [229, 1, 4, 0.49], [6158, 2, 5, 2.11], [346, 3, 5, 0.21], [5076, 1, 4, 0.47], [5165, 2, 5, 2.06], [142, 2, 4, 0.36], [7887, 4, 4, 0.97], [523, 2, 4, 0.36], [74, 1, 4, 0.99], [9372, 1, 4, 0.59], [11953, 1, 4, 0.2], [11770, 1, 4, 0.2], [1492, 1, 4, 0.2], [12721, 2, 5, 0.96], [9491, 21, 12, 0.22], [3981, 3, 11, 0.23], [2912, 2, 7, 1.61], [2423, 80, 4, 1.97], [11772, 1, 4, 0.46], [6497, 1, 4, 0.41], [5434, 1, 4, 0.83], [7573, 1, 9, 1.95], [5584, 3, 4, 2.8], [12229, 2, 4, 0.49], [2438, 2, 5, 1.64], [346, 1, 4, 0.43], [335, 3, 9, 0.4], [10388, 2, 4, 1.05], [10407, 10, 7, 1.19], [11179, 1, 4, 0.27], [823, 1, 4, 0.44], [3975, 4, 4, 1.26], [6496, 1, 4, 0.37], [5209, 3, 5, 0.46], [2805, 137, 4, 1.33], [4253, 1, 4, 0.54], [11812, 1, 4, 0.2], [3900, 3, 4, 1.81], [12764, 2, 6, 0.23], [1622, 1, 4, 0.45], [1703, 2, 4, 0.83], [11490, 1, 4, 0.46], [8676, 2, 4, 0.97], [972, 1, 4, 1.01], [13893, 2, 4, 1.17], [22247, 2, 4, 1.64], [412, 1, 4, 0.64], [6097, 80, 4, 0.76], [2991, 3, 4, 1.37], [10386, 2, 4, 1.79], [11814, 1, 4, 0.48], [7567, 3, 4, 1.08], [6805, 1, 4, 0.51], [10410, 10, 9, 1.31], [8635, 3, 4, 0.87], [1274, 1, 4, 0.48], [37, 1, 4, 1.04], [788, 2, 4, 0.47], [8283, 2, 5, 0.68], [10408, 10, 5, 1.84], [389, 4, 4, 1.46], [8104, 1, 4, 1.09], [12212, 29, 4, 0.47], [35, 1, 4, 1.04], [23611, 3, 5, 0.42], [114, 3, 4, 1.03], [1895, 3, 4, 1.24], [76, 2, 4, 0.47], [95, 3, 12, 0.42], [38, 1, 4, 0.66], [12979, 25, 7, 0.71], [3979, 3, 8, 0.42], [10385, 2, 4, 0.52], [12501, 1, 4, 1.24], [220, 4, 4, 0.44], [8274, 3, 4, 0.87], [4232, 80, 4, 1.82], [24257, 1, 4, 0.48], [5435, 1, 4, 0.69], [9690, 1, 4, 0.47], [8659, 1, 4, 0.41], [440, 3, 4, 0.75], [88, 10, 467, 4.23], [8915, 2, 188, 2.44], [589, 2, 127, 3.01], [2327, 2, 125, 3.09], [2778, 2, 131, 3.06], [6935, 2, 232, 6.0], [2328, 2, 125, 3.53], [5493, 2, 107, 2.48], [305, 2, 122, 2.96], [615, 2, 72, 5.14], [6936, 2, 232, 5.4], [8650, 2, 186, 5.54], [8648, 2, 186, 5.21], [1446, 2, 50, 3.79], [2049, 3, 181, 2.85], [593, 2, 189, 3.07], [143, 2, 123, 3.44], [205, 2, 89, 2.31], [10, 2, 29, 4.53], [144, 2, 123, 3.56], [7036, 1, 107, 5.16], [94, 4, 100, 4.24], [3893, 1, 104, 2.85], [146, 2, 125, 3.69], [141, 2, 130, 2.86], [12224, 1, 109, 2.36], [3891, 1, 104, 2.9], [362, 2, 118, 3.09], [206, 2, 36, 1.72], [2055, 3, 158, 2.07], [75, 2, 143, 4.02], [3889, 1, 104, 3.51], [11234, 2, 152, 4.44], [7005, 1, 23, 3.47], [12870, 1, 114, 5.33], [7084, 3, 109, 3.69], [3980, 4, 473, 4.02], [10149, 3, 735, 4.24], [145, 2, 125, 3.56], [2050, 3, 158, 2.07], [2912, 1, 50, 3.46], [5165, 1, 49, 4.13], [8672, 2, 234, 5.75], [998, 2, 198, 3.64], [9760, 29, 60, 3.37], [972, 3, 493, 3.68], [3, 2, 119, 3.46], [3495, 3, 795, 3.74], [229, 1, 70, 3.03], [6158, 2, 211, 6.0], [346, 3, 525, 2.95], [5076, 1, 108, 3.0], [5165, 2, 314, 5.26], [142, 2, 129, 2.79], [523, 2, 129, 2.79], [74, 1, 192, 4.96], [9372, 1, 226, 4.71], [11953, 1, 165, 3.14], [11770, 1, 181, 3.35], [1492, 1, 31, 3.11], [12721, 2, 233, 4.06], [9491, 21, 1763, 3.05]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 5, 1.34], [615, 2, 4, 0.37], [305, 2, 4, 0.51], [2778, 2, 5, 0.2], [6936, 2, 5, 1.35], [205, 2, 4, 0.51], [130, 1, 4, 0.2], [144, 2, 4, 0.47], [8648, 2, 4, 0.96], [2049, 3, 8, 0.41], [88, 10, 10, 0.19], [7036, 1, 4, 1.23], [326, 2, 4, 0.7], [589, 2, 5, 0.2], [8650, 2, 5, 0.96], [593, 2, 4, 0.52], [11681, 2, 5, 1.37], [2327, 2, 5, 0.54], [3893, 1, 4, 0.2], [141, 2, 4, 0.53], [151, 1, 4, 0.9], [9507, 3, 4, 0.2], [11685, 2, 4, 1.37], [248, 1, 4, 0.41], [146, 2, 4, 1.07], [2050, 3, 5, 1.69], [2055, 3, 4, 1.73], [143, 2, 4, 0.51], [3980, 4, 5, 1.2], [2054, 3, 5, 1.86], [8672, 2, 4, 0.73], [7885, 4, 4, 0.4], [362, 2, 4, 0.2], [12870, 1, 4, 0.92], [2057, 3, 4, 1.78], [7886, 4, 5, 0.4], [13028, 3, 4, 0.62], [145, 2, 4, 1.03], [7084, 3, 4, 0.28], [3495, 3, 13, 0.92], [523, 2, 4, 0.53], [3975, 4, 4, 1.26], [2991, 3, 5, 1.1], [10149, 3, 13, 1.48], [9760, 29, 4, 0.2], [11404, 2, 4, 0.2], [20927, 1, 4, 1.17], [142, 2, 4, 0.52], [3982, 3, 11, 1.18], [3981, 3, 15, 1.15], [6158, 2, 5, 0.68], [417, 2, 4, 0.55], [214, 3, 9, 0.4], [2912, 1, 4, 1.58], [11953, 1, 4, 0.47], [997, 2, 4, 1.68], [22316, 3, 4, 0.51], [33, 1, 4, 1.83], [229, 1, 4, 0.7], [7887, 4, 5, 0.95], [6497, 1, 4, 1.31], [1492, 1, 5, 0.46], [346, 3, 4, 0.46], [998, 2, 4, 1.17], [972, 3, 4, 1.51], [996, 2, 5, 1.47], [35, 1, 4, 1.83], [389, 4, 5, 0.88], [410, 1, 5, 0.4], [11770, 1, 4, 0.2], [2912, 2, 5, 1.26], [336, 15, 4, 0.37], [7567, 3, 4, 1.47], [74, 1, 4, 0.62], [2104, 3, 6, 0.4], [1413, 15, 4, 0.53], [6496, 1, 4, 0.55], [12721, 2, 4, 0.97], [12212, 29, 4, 0.45], [22317, 3, 5, 0.51], [4176, 4, 4, 1.31], [8673, 2, 4, 2.14], [8677, 3, 4, 0.9], [8676, 2, 4, 0.73], [11085, 2, 5, 1.27], [37, 1, 4, 0.66], [1274, 1, 4, 0.53], [21269, 3, 4, 2.99], [22247, 2, 4, 1.64], [7573, 1, 5, 0.97], [13023, 3, 4, 1.26], [9372, 1, 4, 2.31], [39, 1, 4, 0.51], [823, 1, 4, 0.48], [10388, 2, 4, 1.14], [6494, 1, 4, 0.45], [345, 3, 4, 0.51], [201, 3, 4, 0.51], [12271, 2, 4, 0.7], [10936, 2, 4, 1.7], [96, 11, 13, 1.09], [10408, 10, 5, 1.64], [3577, 25, 4, 0.59], [12225, 1, 4, 0.84], [3, 2, 4, 0.96], [10631, 2, 4, 1.98], [2805, 137, 5, 0.47], [11812, 1, 4, 0.46], [9691, 1, 4, 0.75], [1490, 1, 4, 1.08], [1414, 15, 4, 0.53], [20498, 3, 5, 0.99], [23961, 3, 4, 1.48], [36, 1, 4, 0.66], [192, 3, 9, 1.01], [9690, 1, 4, 1.09], [12764, 2, 5, 0.84], [10386, 2, 4, 0.99], [13928, 1, 4, 0.55], [346, 1, 4, 0.55], [3048, 3, 4, 0.92], [8898, 3, 4, 0.71], [10407, 10, 6, 1.35], [3576, 25, 4, 0.75], [11814, 1, 4, 0.48], [13893, 2, 4, 1.13], [11089, 1, 4, 0.44], [972, 1, 4, 0.5], [1339, 3, 9, 0.42], [5812, 3, 4, 0.51], [10939, 2, 4, 1.93], [1523, 1, 4, 0.8], [1163, 3, 4, 0.59], [491, 10, 5, 1.18], [13035, 3, 4, 1.32], [19931, 1, 4, 1.26], [2878, 1, 4, 0.39], [8659, 1, 4, 1.01], [6935, 2, 208, 4.76], [615, 2, 99, 2.62], [305, 2, 108, 2.88], [2778, 2, 115, 3.01], [6936, 2, 208, 5.14], [205, 2, 80, 2.88], [144, 2, 111, 2.81], [8648, 2, 165, 4.65], [2049, 3, 406, 2.82], [88, 10, 424, 2.78], [7036, 1, 93, 4.22], [589, 2, 113, 2.55], [8650, 2, 165, 4.42], [593, 2, 167, 3.17], [11681, 2, 200, 5.29], [2327, 2, 111, 2.93], [3893, 1, 114, 2.19], [141, 2, 114, 3.53], [11685, 2, 200, 5.3], [248, 1, 19, 1.69], [146, 2, 111, 3.51], [2050, 3, 336, 5.27], [2055, 3, 336, 5.36], [143, 2, 109, 2.89], [3980, 4, 353, 4.3], [2054, 3, 336, 5.61], [8672, 2, 210, 4.63], [362, 2, 104, 2.86], [12870, 1, 100, 5.66], [2057, 3, 336, 5.47], [13028, 3, 127, 2.69], [145, 2, 111, 3.43], [7084, 3, 96, 3.38], [3495, 3, 836, 3.08], [523, 2, 114, 3.0], [3975, 4, 353, 4.43], [2991, 3, 119, 6.0], [10149, 3, 755, 4.09], [9760, 29, 53, 2.81], [11404, 2, 73, 2.67], [20927, 1, 27, 3.72], [142, 2, 114, 2.89], [3982, 3, 578, 4.3], [3981, 3, 1179, 3.95], [6158, 2, 183, 3.19], [417, 2, 114, 2.95], [214, 3, 228, 1.63], [2912, 1, 41, 4.55], [11953, 1, 176, 2.34], [997, 2, 83, 6.0], [22316, 3, 274, 2.42], [229, 1, 72, 2.8], [6497, 1, 13, 4.36], [1492, 1, 13, 3.71], [346, 3, 537, 2.34], [996, 2, 165, 5.53], [389, 4, 153, 3.71], [11770, 1, 160, 2.79], [2912, 2, 284, 4.23], [336, 15, 93, 2.72], [74, 1, 148, 3.75], [1413, 15, 35, 2.02]]</t>
-  </si>
-  <si>
-    <t>[[141, 2, 4, 0.2], [2328, 2, 4, 0.2], [8650, 2, 4, 0.96], [5491, 2, 4, 0.2], [362, 2, 4, 0.2], [130, 1, 4, 0.45], [589, 2, 5, 0.52], [2327, 2, 5, 0.51], [326, 2, 4, 1.12], [8672, 2, 5, 0.91], [417, 2, 4, 0.2], [6935, 2, 8, 1.31], [206, 2, 4, 0.2], [6936, 2, 4, 1.09], [142, 2, 4, 0.2], [8915, 2, 5, 0.2], [11838, 2, 5, 0.2], [12721, 2, 5, 0.48], [2049, 3, 9, 0.39], [1446, 2, 4, 0.44], [2778, 2, 5, 0.47], [523, 2, 4, 0.66], [8676, 2, 4, 0.52], [305, 2, 4, 0.98], [411, 2, 4, 0.43], [10574, 3, 6, 1.26], [12349, 1, 4, 0.53], [145, 2, 5, 0.49], [8675, 2, 5, 1.23], [990, 2, 5, 0.4], [76, 2, 4, 0.84], [143, 2, 4, 0.48], [8673, 2, 4, 0.97], [11836, 2, 4, 0.2], [146, 2, 4, 0.51], [6158, 2, 6, 0.83], [151, 1, 4, 0.4], [3495, 3, 13, 0.98], [2050, 3, 5, 0.34], [10149, 3, 13, 1.38], [2055, 3, 4, 0.41], [12350, 1, 4, 0.53], [2054, 3, 5, 0.51], [75, 2, 4, 1.67], [144, 2, 4, 0.5], [7885, 4, 5, 0.44], [2859, 15, 4, 0.35], [88, 10, 8, 0.95], [10993, 2, 5, 0.2], [3848, 2, 4, 1.07], [7705, 2, 4, 1.15], [2423, 80, 4, 1.96], [2424, 29, 4, 1.0], [2423, 29, 4, 0.52], [12351, 1, 4, 0.44], [2424, 80, 4, 2.32], [60, 3, 5, 1.93], [1519, 3, 10, 0.39], [201, 3, 4, 1.01], [1414, 15, 4, 0.35], [12373, 1, 5, 0.45], [345, 3, 4, 1.04], [5208, 3, 8, 0.48], [6952, 1, 4, 0.45], [20927, 1, 4, 0.98], [11954, 1, 4, 0.44], [432, 3, 5, 2.04], [3, 2, 4, 1.52], [3430, 15, 4, 1.08], [7004, 1, 4, 1.02], [7886, 4, 5, 0.44], [11811, 1, 4, 0.38], [2703, 3, 4, 1.65], [13928, 1, 4, 0.2], [2331, 1, 4, 0.6], [114, 3, 4, 0.41], [3429, 15, 4, 0.49], [11089, 1, 4, 0.43], [105, 3, 4, 0.41], [5584, 3, 4, 2.72], [3981, 3, 8, 0.51], [944, 15, 4, 0.4], [308, 1, 5, 0.99], [7706, 2, 4, 1.05], [10407, 10, 6, 1.31], [8274, 3, 4, 2.02], [1886, 2, 4, 0.35], [1490, 1, 4, 0.79], [10410, 10, 6, 1.9], [22317, 3, 6, 0.2], [94, 4, 4, 0.79], [3891, 1, 4, 0.74], [3893, 1, 4, 0.94], [8898, 3, 4, 1.99], [9690, 1, 4, 0.91], [9082, 3, 15, 0.83], [7708, 2, 4, 1.05], [3028, 3, 4, 0.43], [6497, 1, 4, 0.44], [9342, 2, 5, 0.49], [10409, 10, 6, 1.67], [10406, 10, 7, 1.73], [1274, 1, 4, 1.24], [952, 4, 4, 2.22], [20196, 2, 4, 0.72], [823, 1, 4, 1.8], [21003, 2, 4, 0.72], [10897, 1, 8, 0.47], [10408, 10, 6, 1.66], [20682, 1, 4, 1.05], [10398, 2, 4, 1.72], [5812, 3, 4, 1.51], [5946, 1, 4, 1.47], [13928, 2, 4, 0.55], [11677, 1, 4, 1.16], [4253, 1, 4, 0.73], [957, 2, 4, 0.48], [6630, 3, 4, 1.81], [7703, 2, 4, 1.05], [186, 3, 7, 0.52], [20680, 1, 4, 0.69], [95, 3, 8, 0.72], [963, 3, 4, 0.93], [20555, 2, 4, 0.44], [8635, 3, 4, 2.02], [2438, 2, 5, 1.36], [2805, 137, 5, 2.77], [1050, 2, 4, 0.36], [8897, 3, 4, 1.97], [3478, 2, 4, 1.28], [3980, 4, 4, 1.26], [3889, 1, 4, 0.94], [11603, 2, 4, 1.5], [9068, 1, 4, 1.56], [5811, 3, 5, 1.81], [9, 1, 4, 0.39], [11812, 1, 4, 0.46], [9491, 21, 10, 1.24], [141, 2, 133, 3.16], [2328, 2, 128, 4.14], [8650, 2, 192, 4.6], [5491, 2, 92, 3.39], [362, 2, 122, 3.23], [589, 2, 51, 3.23], [2327, 2, 128, 4.11], [8672, 2, 244, 4.19], [417, 2, 133, 3.16], [6935, 2, 240, 6.0], [6936, 2, 240, 4.86], [142, 2, 133, 3.33], [11838, 2, 227, 3.3], [12721, 2, 241, 3.74], [2049, 3, 276, 2.99], [1446, 2, 52, 1.92], [2778, 2, 159, 3.12], [523, 2, 79, 3.51], [8676, 2, 289, 2.78], [305, 2, 74, 3.31], [411, 2, 37, 1.9], [10574, 3, 425, 4.77], [12349, 1, 626, 2.79], [145, 2, 128, 3.91], [8675, 2, 244, 4.22], [76, 2, 110, 3.4], [143, 2, 149, 2.7], [8673, 2, 287, 4.69], [11836, 2, 227, 3.14], [146, 2, 151, 4.46], [6158, 2, 221, 4.94], [151, 1, 56, 2.56], [3495, 3, 816, 4.03], [2050, 3, 410, 2.42], [10149, 3, 760, 4.24], [12350, 1, 626, 2.79], [2054, 3, 161, 2.47], [75, 2, 122, 4.99], [144, 2, 50, 3.7], [2859, 15, 69, 3.38], [88, 10, 563, 3.87], [3848, 2, 168, 3.84], [7705, 2, 149, 4.56], [2423, 80, 123, 6.0], [2424, 29, 29, 6.0], [2423, 29, 37, 3.28], [12351, 1, 626, 2.62], [2424, 80, 167, 6.0], [60, 3, 536, 5.12], [1519, 3, 1416, 2.82], [201, 3, 253, 4.95], [1414, 15, 100, 2.45], [12373, 1, 535, 4.76], [345, 3, 302, 3.77], [5208, 3, 190, 1.94], [6952, 1, 191, 2.75], [11954, 1, 202, 2.63], [432, 3, 101, 6.0], [3, 2, 120, 4.71], [3430, 15, 69, 3.86], [7886, 4, 48, 2.73], [11811, 1, 453, 3.71]]</t>
-  </si>
-  <si>
-    <t>[[2778, 2, 5, 0.2], [6935, 2, 7, 1.8], [6936, 2, 4, 1.17], [305, 2, 4, 0.48], [8672, 2, 5, 0.91], [615, 2, 4, 0.2], [1504, 2, 5, 0.58], [145, 2, 5, 0.49], [12721, 2, 5, 0.72], [2327, 2, 4, 0.2], [146, 2, 5, 0.62], [143, 2, 4, 1.01], [2328, 2, 4, 0.51], [11737, 2, 4, 0.54], [141, 2, 4, 0.55], [5491, 2, 4, 0.2], [205, 2, 5, 0.37], [144, 2, 5, 0.53], [8650, 2, 4, 1.53], [8676, 2, 4, 0.6], [8673, 2, 5, 0.73], [417, 2, 4, 0.47], [589, 2, 5, 0.2], [3, 2, 4, 0.66], [206, 2, 4, 0.2], [22247, 2, 4, 1.21], [6097, 80, 5, 1.86], [6497, 1, 4, 0.2], [11836, 2, 5, 0.2], [2055, 3, 4, 0.46], [990, 2, 4, 0.27], [12344, 1, 5, 0.7], [523, 2, 4, 0.66], [593, 2, 5, 0.2], [6097, 29, 4, 2.36], [6098, 80, 4, 2.59], [12345, 1, 4, 2.03], [11739, 2, 4, 0.54], [88, 10, 8, 0.19], [2054, 3, 4, 0.62], [8915, 2, 4, 0.41], [75, 2, 4, 0.47], [326, 2, 4, 0.41], [60, 3, 6, 0.85], [1492, 1, 4, 0.72], [1413, 15, 5, 0.2], [411, 2, 4, 0.37], [1050, 2, 4, 0.38], [6496, 1, 4, 1.05], [6098, 29, 4, 2.59], [947, 15, 4, 0.44], [7704, 2, 4, 1.05], [10149, 3, 13, 1.48], [345, 3, 4, 0.76], [2859, 15, 4, 0.47], [11738, 2, 4, 0.54], [1243, 2, 4, 1.11], [13264, 29, 4, 0.52], [1049, 2, 4, 0.38], [1490, 1, 4, 0.36], [229, 1, 4, 2.07], [964, 15, 4, 0.4], [7004, 1, 4, 0.81], [201, 3, 5, 0.51], [2331, 1, 4, 0.52], [10407, 10, 6, 1.31], [186, 3, 7, 0.67], [5208, 3, 8, 0.54], [22558, 3, 5, 0.2], [114, 3, 4, 1.12], [432, 3, 4, 2.04], [1163, 3, 4, 1.45], [7705, 2, 4, 1.05], [957, 2, 5, 0.51], [7706, 2, 4, 1.05], [12229, 2, 4, 0.45], [13928, 1, 4, 0.55], [2421, 80, 4, 1.08], [3478, 2, 4, 1.28], [11404, 2, 4, 0.43], [10408, 10, 6, 1.66], [10406, 10, 7, 1.73], [7036, 1, 4, 0.43], [19687, 1, 4, 0.7], [11687, 2, 4, 0.5], [10410, 10, 6, 1.9], [12870, 1, 4, 0.94], [11490, 1, 4, 0.55], [1886, 2, 4, 0.35], [9784, 1, 4, 1.01], [410, 1, 4, 0.61], [11159, 1, 7, 0.84], [22125, 2, 4, 0.36], [2703, 3, 4, 1.65], [21781, 2, 4, 0.47], [11161, 1, 5, 1.22], [9760, 29, 4, 0.85], [956, 2, 4, 0.53], [7708, 2, 4, 1.05], [12373, 1, 5, 0.45], [9065, 2, 4, 0.48], [5976, 1, 4, 1.98], [94, 4, 4, 0.6], [11689, 2, 4, 0.47], [105, 3, 4, 0.83], [8599, 1, 4, 0.39], [1274, 1, 4, 1.91], [2805, 137, 5, 0.52], [9372, 1, 4, 1.74], [9209, 29, 4, 0.54], [11953, 1, 4, 0.47], [5584, 3, 4, 2.72], [11811, 1, 4, 0.38], [4253, 1, 4, 0.73], [11160, 1, 4, 1.31], [8600, 1, 4, 0.98], [3495, 3, 13, 0.85], [247, 1, 4, 0.8], [2991, 3, 4, 2.31], [8283, 2, 5, 0.36], [21269, 3, 4, 1.6], [12764, 2, 5, 0.84], [20927, 1, 4, 0.7], [8285, 2, 5, 0.49], [11887, 2, 5, 0.57], [1691, 1, 4, 1.33], [20555, 2, 4, 0.47], [9491, 21, 10, 1.69], [5076, 1, 4, 1.12], [11677, 1, 4, 1.16], [4372, 1, 4, 0.5], [3934, 5, 5, 0.56], [12304, 1, 4, 1.36], [8635, 3, 4, 0.87], [12979, 25, 9, 0.71], [13198, 29, 4, 1.27], [3230, 1, 4, 0.43], [2778, 2, 156, 2.86], [6935, 2, 237, 6.0], [6936, 2, 284, 4.68], [305, 2, 125, 3.24], [8672, 2, 244, 4.19], [615, 2, 107, 3.51], [1504, 2, 173, 3.63], [145, 2, 128, 3.19], [12721, 2, 240, 3.97], [2327, 2, 128, 4.11], [146, 2, 128, 3.92], [143, 2, 126, 3.72], [2328, 2, 128, 4.14], [11737, 2, 19, 2.58], [141, 2, 104, 3.85], [5491, 2, 92, 3.31], [205, 2, 37, 3.03], [144, 2, 101, 3.71], [8650, 2, 191, 6.0], [8676, 2, 244, 3.38], [8673, 2, 244, 5.23], [417, 2, 78, 3.67], [3, 2, 103, 3.49], [206, 2, 37, 3.03], [22247, 2, 240, 4.52], [6097, 80, 57, 5.71], [6497, 1, 33, 3.13], [11836, 2, 227, 3.22], [2055, 3, 410, 2.78], [990, 2, 29, 3.34], [12344, 1, 522, 3.81], [523, 2, 133, 3.51], [593, 2, 154, 3.17], [6097, 29, 29, 6.0], [12345, 1, 613, 5.7], [11739, 2, 58, 2.82], [88, 10, 477, 4.8], [2054, 3, 241, 2.61], [8915, 2, 65, 1.86], [75, 2, 145, 2.68], [326, 2, 92, 2.63], [60, 3, 692, 3.78], [1492, 1, 37, 3.17], [411, 2, 73, 3.03], [6496, 1, 40, 3.85], [947, 15, 42, 2.63], [7704, 2, 178, 4.4], [10149, 3, 876, 4.41], [345, 3, 301, 3.99], [2859, 15, 69, 3.48], [11738, 2, 38, 2.94], [1243, 2, 100, 3.92], [13264, 29, 73, 2.78], [1490, 1, 44, 2.94], [229, 1, 82, 5.76], [7004, 1, 27, 2.63], [201, 3, 201, 4.91], [2331, 1, 119, 2.78], [10407, 10, 1171, 5.03], [186, 3, 664, 3.3], [5208, 3, 377, 2.58], [22558, 3, 408, 3.51], [114, 3, 122, 4.04]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 5, 0.91], [141, 2, 4, 0.48], [361, 2, 5, 0.59], [6935, 2, 7, 1.55], [12721, 2, 6, 1.21], [206, 2, 4, 0.2], [2049, 3, 10, 0.21], [8676, 2, 5, 0.6], [8675, 2, 5, 0.73], [1504, 2, 5, 0.2], [417, 2, 4, 0.47], [3, 2, 5, 0.61], [6936, 2, 4, 1.33], [305, 2, 5, 0.48], [22247, 2, 5, 1.0], [523, 2, 4, 0.66], [8650, 2, 4, 1.27], [8648, 2, 4, 0.88], [2328, 2, 4, 0.64], [2776, 2, 5, 0.2], [11739, 2, 4, 0.68], [2327, 2, 4, 0.64], [11837, 2, 4, 0.45], [12352, 1, 4, 2.07], [411, 2, 4, 0.38], [589, 2, 4, 0.2], [143, 2, 4, 0.7], [146, 2, 4, 1.12], [11835, 2, 4, 0.49], [6497, 1, 5, 0.2], [583, 2, 4, 1.16], [6097, 80, 4, 2.11], [326, 2, 4, 0.41], [10574, 3, 5, 1.75], [145, 2, 4, 0.57], [144, 2, 4, 0.57], [10149, 3, 13, 0.39], [11836, 2, 4, 0.54], [6097, 29, 4, 0.66], [75, 2, 5, 0.49], [12344, 1, 4, 1.35], [1413, 15, 4, 0.46], [6496, 1, 5, 0.2], [1243, 2, 4, 0.73], [6098, 80, 4, 2.59], [8915, 2, 5, 0.2], [1886, 2, 5, 0.2], [247, 1, 4, 2.06], [6098, 29, 4, 0.83], [944, 15, 4, 0.2], [1490, 1, 4, 0.47], [2859, 15, 4, 0.71], [3934, 5, 6, 0.2], [2049, 1, 4, 0.2], [201, 3, 4, 0.44], [6158, 2, 5, 1.77], [3478, 2, 4, 1.28], [12350, 1, 4, 2.03], [11489, 1, 4, 0.72], [13928, 1, 4, 0.55], [7084, 3, 4, 2.46], [1703, 2, 4, 0.75], [8599, 1, 4, 0.37], [9342, 2, 5, 0.49], [4253, 1, 4, 0.73], [3982, 3, 12, 0.36], [308, 1, 5, 0.79], [186, 3, 7, 0.52], [11887, 2, 5, 0.57], [11885, 2, 4, 0.51], [94, 4, 4, 0.48], [2438, 2, 5, 1.36], [11811, 1, 4, 0.38], [11490, 1, 4, 0.48], [1050, 2, 4, 0.36], [10398, 2, 4, 0.37], [5812, 3, 4, 2.0], [229, 1, 4, 1.18], [2821, 3, 8, 0.5], [4232, 80, 4, 0.69], [5939, 3, 4, 0.59], [11671, 1, 4, 0.42], [5813, 3, 5, 2.0], [3495, 3, 13, 0.85], [5811, 3, 6, 0.98], [8898, 3, 4, 3.26], [12764, 2, 5, 0.84], [3980, 4, 4, 1.26], [7036, 1, 4, 0.43], [2108, 3, 6, 0.54], [1049, 2, 4, 0.36], [105, 3, 4, 0.94], [13928, 2, 4, 0.55], [9690, 1, 4, 0.99], [5584, 3, 4, 2.72], [8274, 3, 4, 2.02], [22573, 2, 4, 0.99], [3981, 3, 8, 0.51], [1523, 1, 4, 0.72], [11886, 2, 4, 0.75], [10407, 10, 6, 1.31], [192, 3, 7, 1.24], [1277, 1, 4, 0.47], [8897, 3, 4, 3.26], [10124, 1, 4, 2.17], [2991, 3, 4, 1.5], [10406, 10, 7, 1.73], [20927, 1, 4, 0.64], [10147, 1, 4, 0.37], [11677, 1, 4, 1.16], [3334, 5, 4, 0.46], [2438, 1, 4, 1.31], [8635, 3, 4, 2.02], [11678, 1, 4, 1.62], [1701, 2, 4, 0.55], [23275, 2, 4, 0.99], [7004, 1, 4, 0.74], [4001, 3, 6, 0.53], [23031, 3, 4, 1.37], [9373, 5, 4, 4.0], [1274, 1, 4, 1.97], [10516, 3, 5, 0.86], [5976, 1, 4, 1.98], [10181, 26, 5, 0.53], [3984, 3, 5, 0.51], [9065, 2, 4, 0.48], [14041, 3, 4, 0.45], [8285, 2, 5, 0.49], [973, 3, 5, 0.65], [7005, 1, 4, 0.74], [19924, 2, 4, 0.95], [9069, 1, 4, 1.09], [10409, 10, 6, 1.67], [11812, 1, 4, 0.46], [1648, 1, 4, 1.04], [8188, 10, 6, 0.86], [12241, 3, 4, 0.38], [942, 3, 4, 0.75], [8672, 2, 244, 4.19], [141, 2, 133, 3.16], [361, 2, 133, 3.37], [6935, 2, 238, 6.0], [12721, 2, 242, 5.08], [2049, 3, 186, 2.87], [8676, 2, 244, 3.38], [8675, 2, 244, 3.67], [1504, 2, 174, 3.23], [417, 2, 133, 3.16], [3, 2, 103, 3.41], [6936, 2, 238, 5.42], [305, 2, 125, 3.17], [22247, 2, 242, 4.11], [523, 2, 133, 3.51], [8650, 2, 192, 4.43], [8648, 2, 192, 4.3], [2328, 2, 152, 3.55], [2776, 2, 134, 3.17], [11739, 2, 19, 2.38], [2327, 2, 152, 3.26], [11837, 2, 269, 2.65], [12352, 1, 522, 5.76], [411, 2, 37, 2.98], [143, 2, 149, 3.13], [146, 2, 128, 3.94], [11835, 2, 269, 2.72], [6497, 1, 33, 3.13], [6097, 80, 56, 5.84], [326, 2, 92, 2.63], [10574, 3, 425, 5.26], [145, 2, 50, 3.88], [10149, 3, 760, 3.82], [11836, 2, 269, 2.82], [6097, 29, 34, 3.05], [75, 2, 123, 4.17], [12344, 1, 613, 4.37], [1413, 15, 100, 2.67], [6496, 1, 35, 3.85], [1243, 2, 101, 3.19], [1886, 2, 133, 3.21], [247, 1, 87, 5.75], [6098, 29, 38, 3.99], [944, 15, 15, 3.15], [1490, 1, 51, 2.68], [2859, 15, 59, 3.59], [3934, 5, 496, 3.22], [2049, 1, 36, 2.86], [201, 3, 307, 2.63], [12350, 1, 613, 5.7], [13928, 1, 47, 4.68], [1703, 2, 139, 3.82], [8599, 1, 146, 3.14], [9342, 2, 156, 1.93], [4253, 1, 173, 3.19], [3982, 3, 821, 2.44], [308, 1, 174, 3.69], [186, 3, 668, 2.76], [11887, 2, 193, 2.78], [11885, 2, 193, 2.76], [94, 4, 124, 2.7], [2438, 2, 629, 5.11]]</t>
-  </si>
-  <si>
-    <t>[[305, 2, 4, 0.2], [6935, 2, 7, 0.97], [2328, 2, 4, 0.2], [130, 1, 4, 0.2], [141, 2, 5, 0.48], [8650, 2, 4, 0.46], [8672, 2, 6, 0.2], [2327, 2, 4, 0.2], [362, 2, 4, 1.09], [6936, 2, 4, 1.26], [143, 2, 5, 0.51], [145, 2, 4, 0.5], [248, 1, 4, 0.36], [205, 2, 4, 0.37], [5493, 2, 4, 0.85], [417, 2, 4, 0.54], [146, 2, 4, 0.57], [75, 2, 5, 0.97], [11737, 2, 4, 0.58], [1124, 2, 6, 0.32], [523, 2, 5, 0.2], [2049, 3, 10, 0.21], [12721, 2, 5, 0.48], [1005, 2, 4, 0.2], [8853, 2, 4, 1.46], [206, 2, 4, 0.37], [326, 2, 5, 0.85], [8673, 2, 5, 0.2], [8915, 2, 5, 0.89], [144, 2, 4, 0.46], [11835, 2, 4, 0.36], [11739, 2, 5, 1.39], [88, 10, 8, 0.19], [434, 2, 5, 0.55], [142, 2, 5, 0.2], [151, 1, 4, 1.01], [435, 2, 4, 0.53], [8676, 2, 5, 0.7], [11234, 2, 4, 0.63], [6158, 2, 5, 0.2], [11738, 2, 4, 0.58], [11836, 2, 4, 0.47], [1413, 15, 4, 0.2], [7705, 2, 4, 1.65], [10574, 3, 6, 1.26], [944, 15, 4, 0.4], [7706, 2, 4, 1.65], [3, 2, 4, 1.04], [2054, 3, 4, 0.65], [2859, 15, 4, 1.37], [12720, 2, 4, 0.98], [74, 1, 4, 1.69], [3478, 2, 4, 1.78], [2055, 3, 4, 0.46], [10149, 3, 13, 0.75], [3429, 15, 4, 0.45], [6497, 1, 4, 0.44], [7004, 1, 4, 1.06], [60, 3, 5, 1.7], [411, 2, 4, 0.37], [11089, 1, 4, 0.41], [13928, 1, 4, 0.55], [2057, 3, 4, 0.65], [13028, 3, 4, 0.37], [7036, 1, 4, 0.43], [18964, 1, 4, 0.2], [6097, 80, 5, 3.8], [13260, 29, 4, 1.17], [8274, 3, 4, 0.58], [3893, 1, 5, 2.08], [13034, 3, 5, 1.15], [14037, 3, 4, 0.96], [94, 4, 5, 1.77], [6952, 1, 4, 1.59], [3891, 1, 4, 1.26], [1050, 2, 4, 0.2], [7707, 2, 4, 0.75], [1243, 2, 4, 0.95], [21793, 1, 5, 1.44], [1490, 1, 4, 0.79], [3889, 1, 5, 2.08], [11490, 1, 4, 0.74], [22317, 3, 6, 0.2], [7708, 2, 4, 1.05], [345, 3, 4, 1.26], [6098, 80, 5, 2.21], [7703, 2, 4, 1.05], [229, 1, 4, 2.07], [3495, 3, 13, 0.85], [6630, 3, 4, 2.4], [2991, 3, 4, 2.17], [13023, 3, 6, 0.57], [336, 15, 4, 0.38], [2805, 137, 5, 0.48], [11581, 29, 4, 0.87], [6098, 29, 4, 0.83], [6627, 3, 4, 0.44], [23275, 2, 4, 0.99], [13033, 3, 4, 0.69], [2331, 1, 4, 0.64], [13263, 29, 4, 0.43], [1049, 2, 4, 0.36], [247, 1, 4, 1.62], [1274, 1, 4, 1.5], [8635, 3, 4, 0.61], [6628, 3, 4, 0.47], [6097, 29, 4, 0.59], [114, 3, 4, 1.23], [5940, 3, 4, 0.45], [12229, 2, 4, 0.45], [20555, 2, 4, 0.39], [942, 3, 4, 0.75], [6496, 1, 4, 1.05], [11914, 1, 4, 0.41], [10406, 10, 7, 1.73], [8898, 3, 4, 0.48], [9372, 1, 4, 1.74], [192, 3, 7, 1.24], [10411, 10, 6, 1.74], [215, 4, 4, 1.55], [21269, 3, 4, 0.5], [3934, 5, 5, 0.56], [9760, 29, 4, 1.46], [186, 3, 7, 1.23], [11770, 1, 4, 1.07], [10407, 10, 6, 1.31], [5209, 3, 5, 0.54], [12373, 1, 5, 0.45], [10527, 3, 8, 1.0], [10408, 10, 6, 1.66], [5812, 3, 4, 0.5], [6360, 10, 9, 0.83], [21781, 2, 4, 0.47], [4940, 1, 4, 0.37], [7005, 1, 4, 0.81], [9082, 3, 15, 0.83], [12870, 1, 4, 1.74], [1886, 2, 4, 0.44], [19687, 1, 4, 1.21], [305, 2, 146, 2.67], [6935, 2, 239, 6.0], [2328, 2, 128, 4.14], [141, 2, 133, 3.16], [8650, 2, 225, 4.1], [8672, 2, 244, 4.72], [2327, 2, 128, 4.11], [6936, 2, 239, 5.25], [143, 2, 126, 3.22], [145, 2, 129, 3.21], [205, 2, 37, 3.03], [5493, 2, 92, 3.84], [417, 2, 157, 2.82], [146, 2, 129, 3.32], [75, 2, 124, 4.07], [11737, 2, 19, 2.63], [1124, 2, 157, 4.02], [523, 2, 78, 3.51], [2049, 3, 186, 3.28], [12721, 2, 241, 3.74], [1005, 2, 90, 4.26], [8853, 2, 239, 5.16], [206, 2, 37, 3.03], [326, 2, 31, 4.01], [8673, 2, 245, 4.98], [144, 2, 129, 3.13], [11835, 2, 269, 2.47], [88, 10, 477, 4.8], [434, 2, 36, 3.57], [142, 2, 133, 3.33], [435, 2, 36, 3.26], [8676, 2, 244, 3.57], [11234, 2, 62, 2.63], [6158, 2, 222, 4.29], [11738, 2, 38, 2.99], [11836, 2, 227, 3.14], [1413, 15, 50, 3.27], [7705, 2, 148, 4.89], [10574, 3, 425, 4.78], [944, 15, 15, 1.84], [7706, 2, 148, 4.89], [3, 2, 102, 4.23], [12720, 2, 241, 3.74], [74, 1, 170, 6.0], [2055, 3, 408, 2.76], [10149, 3, 883, 3.28], [3429, 15, 27, 2.29], [6497, 1, 38, 2.63], [60, 3, 405, 4.38], [411, 2, 55, 3.03], [11089, 1, 148, 3.03], [13928, 1, 47, 4.68], [2057, 3, 481, 3.02], [13028, 3, 147, 3.74], [7036, 1, 129, 3.52], [18964, 1, 57, 2.59], [6097, 80, 23, 6.0], [13260, 29, 62, 4.03], [3893, 1, 41, 6.0], [13034, 3, 597, 4.06], [6952, 1, 160, 4.84]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 6, 0.87], [141, 2, 4, 0.2], [589, 2, 5, 0.2], [2778, 2, 4, 0.5], [6936, 2, 5, 0.44], [2327, 2, 4, 0.64], [362, 2, 4, 0.56], [8648, 2, 4, 1.58], [11681, 2, 10, 0.85], [8650, 2, 4, 1.58], [326, 2, 4, 0.47], [205, 2, 4, 0.46], [1446, 2, 4, 0.2], [2328, 2, 4, 0.39], [305, 2, 4, 1.0], [2049, 3, 5, 0.45], [130, 1, 4, 0.45], [2775, 2, 4, 0.5], [8853, 2, 5, 0.94], [361, 2, 4, 0.4], [593, 2, 5, 0.2], [143, 2, 4, 0.51], [1429, 2, 4, 0.2], [206, 2, 4, 0.2], [523, 2, 5, 0.54], [7004, 1, 4, 0.89], [12350, 1, 4, 0.19], [7036, 1, 4, 1.42], [1124, 2, 4, 0.29], [151, 1, 4, 0.37], [990, 2, 5, 0.28], [5165, 1, 4, 0.7], [417, 2, 4, 0.55], [248, 1, 4, 0.2], [144, 2, 4, 0.74], [2050, 3, 4, 1.21], [201, 3, 5, 0.92], [6952, 1, 4, 1.54], [6097, 80, 4, 2.38], [345, 3, 5, 0.42], [11770, 1, 4, 0.48], [2055, 3, 4, 1.21], [3891, 1, 4, 0.75], [7084, 3, 4, 2.67], [2057, 3, 4, 0.99], [9372, 1, 4, 0.98], [5165, 2, 7, 1.19], [7005, 1, 4, 0.56], [3893, 1, 5, 0.2], [998, 2, 4, 0.73], [12870, 1, 4, 0.47], [10574, 3, 5, 1.09], [3334, 5, 4, 1.49], [6097, 29, 4, 2.41], [7885, 4, 4, 0.49], [6098, 80, 4, 1.39], [20927, 1, 4, 0.86], [346, 3, 4, 0.21], [11089, 1, 4, 0.87], [12344, 1, 4, 0.53], [10149, 3, 15, 0.75], [6158, 2, 4, 1.34], [3889, 1, 4, 0.74], [1492, 1, 4, 0.2], [432, 3, 4, 0.62], [11953, 1, 4, 0.41], [1519, 3, 10, 0.39], [4032, 29, 4, 0.52], [411, 2, 4, 0.54], [2423, 80, 4, 2.47], [972, 3, 5, 1.01], [5151, 2, 4, 1.05], [13034, 3, 5, 0.81], [229, 1, 4, 2.07], [3576, 25, 4, 1.42], [2331, 1, 4, 0.5], [346, 1, 4, 0.2], [13244, 1, 4, 0.47], [11426, 25, 4, 0.59], [11737, 2, 4, 0.49], [11583, 29, 5, 0.2], [3, 2, 4, 0.82], [5076, 1, 4, 0.44], [2160, 68, 4, 1.02], [11490, 1, 4, 0.71], [2805, 137, 4, 0.68], [12764, 2, 5, 0.2], [6494, 1, 4, 1.48], [8677, 3, 5, 1.21], [13893, 2, 4, 1.01], [1701, 2, 4, 1.54], [3575, 25, 4, 0.6], [11814, 1, 4, 0.48], [3577, 25, 4, 0.37], [1413, 15, 4, 0.43], [3478, 2, 4, 0.62], [11813, 1, 4, 1.51], [23238, 29, 4, 0.37], [75, 2, 4, 0.81], [2438, 2, 5, 1.77], [13023, 3, 5, 1.01], [4253, 1, 4, 1.55], [4033, 29, 4, 0.49], [9289, 29, 4, 1.08], [8283, 2, 5, 0.74], [11404, 2, 4, 0.43], [5812, 3, 4, 2.0], [23238, 25, 4, 0.37], [9967, 2, 4, 0.92], [9069, 1, 4, 0.94], [9971, 2, 4, 0.92], [2878, 1, 4, 0.44], [5584, 3, 4, 1.38], [1163, 3, 4, 1.45], [957, 2, 4, 0.91], [9491, 21, 8, 1.43], [114, 3, 4, 1.03], [21697, 3, 4, 0.45], [4586, 10, 10, 0.8], [10407, 10, 7, 1.31], [13249, 29, 4, 0.38], [823, 1, 4, 0.57], [289, 3, 4, 1.02], [9965, 2, 4, 0.92], [10609, 1, 4, 1.55], [336, 15, 4, 0.38], [9964, 2, 4, 0.92], [4076, 3, 4, 1.42], [7324, 1, 4, 0.67], [12647, 1, 4, 0.75], [1277, 1, 4, 0.43], [2528, 29, 4, 0.97], [3495, 3, 10, 0.82], [1523, 1, 4, 0.4], [4372, 10, 7, 0.52], [11425, 25, 4, 0.57], [6935, 2, 237, 4.77], [141, 2, 134, 2.51], [589, 2, 106, 2.67], [2778, 2, 114, 3.75], [6936, 2, 237, 5.31], [2327, 2, 130, 2.8], [362, 2, 103, 2.95], [8648, 2, 200, 5.47], [11681, 2, 197, 5.59], [8650, 2, 162, 5.74], [326, 2, 67, 3.24], [205, 2, 75, 2.77], [1446, 2, 79, 2.84], [2328, 2, 110, 3.51], [305, 2, 76, 3.76], [2049, 3, 191, 1.77], [2775, 2, 114, 3.75], [8853, 2, 202, 5.94], [361, 2, 114, 3.03], [593, 2, 167, 2.88], [143, 2, 108, 3.18], [1429, 2, 53, 2.99], [206, 2, 38, 2.96], [523, 2, 114, 2.91], [12350, 1, 455, 2.9], [7036, 1, 94, 4.63], [1124, 2, 136, 3.38], [151, 1, 49, 2.6], [5165, 1, 35, 4.29], [417, 2, 114, 2.93], [248, 1, 28, 2.77], [144, 2, 52, 3.57], [2050, 3, 164, 3.22], [6952, 1, 138, 4.96], [6097, 80, 49, 6.0], [345, 3, 219, 3.6], [11770, 1, 189, 2.34], [3891, 1, 108, 2.88], [9372, 1, 199, 4.89], [5165, 2, 278, 4.28], [7005, 1, 28, 1.97], [3893, 1, 91, 2.76], [998, 2, 176, 4.18], [12870, 1, 120, 3.0], [10574, 3, 370, 3.81], [3334, 5, 131, 4.29], [6097, 29, 25, 6.0], [7885, 4, 48, 1.82], [6098, 80, 55, 4.1], [346, 3, 465, 2.72], [11089, 1, 147, 3.09], [12344, 1, 535, 2.43], [10149, 3, 754, 2.93], [6158, 2, 90, 3.46], [3889, 1, 107, 2.84], [1492, 1, 28, 2.62], [432, 3, 223, 3.51], [11953, 1, 173, 2.22], [1519, 3, 1222, 2.59], [4032, 29, 82, 2.42], [411, 2, 75, 2.91], [2423, 80, 131, 6.0], [972, 3, 432, 3.8], [5151, 2, 18, 3.44]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 6, 0.97], [305, 2, 4, 0.75], [2049, 3, 8, 0.47], [326, 2, 4, 0.47], [141, 2, 4, 0.39], [205, 2, 4, 0.56], [151, 1, 4, 0.46], [589, 2, 5, 0.37], [1776, 1, 4, 1.48], [146, 2, 4, 0.58], [206, 2, 4, 0.2], [8648, 2, 5, 0.77], [143, 2, 4, 0.58], [2328, 2, 5, 0.55], [990, 2, 4, 0.2], [6936, 2, 5, 1.17], [1777, 1, 4, 0.93], [8650, 2, 5, 1.15], [5151, 2, 4, 1.05], [2778, 2, 4, 0.2], [88, 10, 8, 0.62], [2050, 3, 4, 0.77], [10, 2, 5, 0.47], [10149, 3, 17, 1.32], [76, 2, 4, 1.11], [8649, 2, 4, 1.15], [8677, 3, 6, 1.56], [2054, 3, 5, 0.58], [412, 1, 4, 0.91], [13028, 3, 4, 0.5], [413, 1, 4, 0.85], [7004, 1, 4, 0.4], [411, 2, 4, 0.48], [10825, 21, 8, 0.37], [410, 1, 4, 0.61], [7084, 3, 4, 1.38], [307, 2, 4, 0.58], [3478, 2, 4, 0.78], [6158, 2, 5, 0.45], [3495, 3, 15, 1.31], [5081, 2, 5, 0.2], [167, 3, 4, 1.35], [7005, 1, 4, 0.4], [1492, 1, 4, 0.2], [7036, 1, 4, 1.14], [8676, 2, 4, 0.49], [9827, 3, 4, 0.2], [45, 2, 4, 1.12], [168, 3, 5, 0.29], [5812, 3, 5, 2.5], [57, 1, 4, 0.44], [94, 4, 4, 0.51], [1504, 2, 5, 0.2], [12870, 1, 4, 2.33], [335, 3, 10, 1.08], [418, 2, 4, 0.37], [2336, 3, 5, 0.99], [6097, 29, 4, 2.36], [6097, 80, 4, 2.36], [8853, 2, 5, 1.32], [346, 1, 4, 0.56], [490, 1, 4, 0.51], [1490, 1, 4, 0.45], [998, 2, 4, 1.27], [20927, 1, 4, 0.61], [95, 3, 15, 0.54], [79, 1, 4, 0.38], [9069, 1, 4, 1.09], [22316, 3, 4, 0.49], [6098, 29, 4, 2.52], [14017, 3, 4, 0.67], [6098, 80, 4, 2.52], [1070, 7, 9, 0.43], [346, 3, 5, 0.51], [8898, 3, 5, 2.17], [997, 2, 4, 1.29], [13034, 3, 6, 1.26], [9760, 29, 4, 0.43], [20498, 1, 5, 0.55], [192, 3, 11, 1.24], [336, 15, 4, 0.38], [5086, 1, 5, 0.58], [8945, 3, 5, 0.8], [7887, 4, 4, 0.37], [12350, 1, 4, 2.08], [5811, 3, 5, 1.18], [7567, 3, 4, 1.12], [22317, 3, 6, 0.51], [11085, 2, 5, 0.45], [12345, 1, 4, 1.02], [12924, 1, 4, 0.2], [5813, 3, 5, 1.08], [12349, 1, 4, 1.0], [229, 1, 4, 2.07], [972, 3, 5, 0.35], [995, 2, 4, 1.31], [9082, 3, 15, 0.67], [1622, 1, 5, 0.2], [8557, 3, 4, 0.33], [12352, 1, 4, 1.0], [20498, 3, 5, 1.1], [996, 2, 4, 1.24], [9691, 1, 4, 1.41], [12346, 1, 4, 1.02], [8104, 1, 4, 0.39], [3049, 3, 4, 1.48], [1080, 3, 4, 0.8], [14018, 3, 4, 0.5], [4076, 3, 4, 2.69], [3900, 3, 4, 1.68], [13023, 3, 6, 1.24], [1703, 2, 4, 1.38], [110, 4, 4, 0.94], [20486, 3, 6, 1.0], [5584, 3, 4, 0.5], [9613, 1, 4, 0.45], [2424, 80, 4, 1.95], [35, 1, 4, 1.05], [972, 1, 4, 0.48], [215, 4, 4, 3.07], [9372, 1, 4, 0.39], [1414, 15, 4, 0.42], [9081, 3, 7, 0.78], [20486, 1, 4, 0.51], [33, 1, 4, 0.74], [114, 3, 4, 0.48], [6497, 1, 4, 1.0], [39, 1, 4, 0.55], [11510, 3, 5, 0.97], [823, 1, 4, 0.36], [3047, 3, 4, 0.55], [1339, 3, 10, 0.42], [2854, 21, 8, 0.47], [18, 1, 4, 0.48], [13893, 2, 4, 1.17], [10529, 29, 4, 1.44], [8672, 2, 223, 4.57], [305, 2, 115, 3.14], [2049, 3, 508, 2.01], [326, 2, 72, 2.63], [141, 2, 123, 2.37], [205, 2, 50, 1.98], [151, 1, 53, 2.49], [589, 2, 71, 1.58], [1776, 1, 100, 4.01], [146, 2, 119, 2.72], [206, 2, 50, 2.36], [8648, 2, 176, 4.17], [143, 2, 117, 2.71], [2328, 2, 119, 2.66], [990, 2, 41, 2.81], [6936, 2, 223, 4.12], [1777, 1, 100, 3.38], [8650, 2, 176, 4.82], [5151, 2, 19, 3.18], [2778, 2, 123, 2.71], [88, 10, 442, 3.9], [2050, 3, 373, 3.04], [10, 2, 63, 4.58], [10149, 3, 676, 4.91], [76, 2, 85, 3.94], [8649, 2, 176, 4.51], [8677, 3, 231, 4.73], [2054, 3, 368, 4.35], [412, 1, 66, 3.32], [13028, 3, 116, 2.58], [413, 1, 68, 2.8], [7004, 1, 63, 2.38], [411, 2, 76, 2.53], [10825, 21, 505, 2.33], [410, 1, 96, 2.33], [307, 2, 117, 2.72], [3478, 2, 59, 3.39], [6158, 2, 184, 2.19], [3495, 3, 754, 3.9], [5081, 2, 150, 2.65], [7005, 1, 63, 2.38], [1492, 1, 29, 2.35], [7036, 1, 100, 4.13], [8676, 2, 223, 4.2], [9827, 3, 69, 2.54], [45, 2, 85, 5.32], [168, 3, 321, 3.12], [5812, 3, 541, 5.56], [57, 1, 40, 1.8], [94, 4, 94, 4.2], [1504, 2, 161, 2.49], [12870, 1, 108, 5.93], [335, 3, 1163, 4.95], [418, 2, 130, 1.87], [2336, 3, 536, 2.91], [6097, 29, 27, 5.7], [6097, 80, 53, 5.7], [8853, 2, 223, 5.23], [346, 1, 142, 2.23], [490, 1, 41, 2.58], [1490, 1, 47, 2.03], [998, 2, 217, 3.65], [95, 3, 884, 2.58], [79, 1, 22, 1.5]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 12, 2.68], [305, 2, 7, 1.49], [3, 2, 7, 0.9], [326, 2, 11, 1.63], [589, 2, 10, 0.81], [6935, 2, 18, 3.14], [205, 2, 7, 0.71], [143, 2, 7, 1.12], [75, 2, 9, 1.72], [144, 2, 7, 0.94], [12721, 2, 10, 1.69], [145, 2, 7, 1.0], [8915, 2, 12, 0.71], [1776, 1, 7, 1.17], [146, 2, 7, 1.0], [2778, 2, 9, 1.07], [206, 2, 7, 1.18], [6936, 2, 10, 2.57], [1777, 1, 7, 1.85], [151, 1, 7, 0.71], [8648, 2, 9, 3.76], [2328, 2, 7, 1.55], [8650, 2, 9, 4.7], [5151, 2, 7, 3.02], [2050, 3, 9, 1.53], [7886, 4, 7, 0.87], [141, 2, 7, 2.12], [248, 1, 7, 0.68], [88, 10, 21, 2.85], [74, 1, 7, 3.53], [2054, 3, 7, 1.04], [2991, 3, 7, 4.18], [2057, 3, 7, 0.87], [7004, 1, 7, 0.71], [1446, 2, 7, 0.93], [1492, 1, 7, 2.35], [362, 2, 7, 2.43], [2055, 3, 7, 0.82], [76, 2, 7, 2.04], [8649, 2, 9, 4.7], [345, 3, 7, 1.1], [7005, 1, 7, 0.73], [3889, 1, 7, 0.8], [11234, 2, 11, 0.93], [10825, 21, 13, 2.29], [7084, 3, 7, 3.91], [5081, 2, 7, 1.33], [12870, 1, 7, 4.49], [7036, 1, 7, 2.24], [10149, 3, 21, 1.68], [3478, 2, 7, 2.63], [1654, 2, 7, 1.04], [94, 4, 7, 2.1], [3891, 1, 7, 2.13], [167, 3, 7, 2.27], [432, 3, 7, 1.15], [33, 1, 9, 2.05], [9827, 3, 7, 0.78], [411, 2, 7, 0.71], [168, 3, 7, 2.37], [8677, 3, 9, 1.26], [79, 1, 7, 0.66], [3893, 1, 7, 2.13], [23, 1, 7, 1.29], [22247, 2, 11, 2.32], [201, 3, 7, 1.1], [1490, 1, 9, 0.67], [1124, 2, 11, 0.93], [5812, 3, 8, 1.9], [96, 11, 24, 1.07], [11737, 2, 7, 1.03], [9760, 29, 7, 1.42], [35, 1, 7, 1.95], [6158, 2, 8, 0.86], [335, 3, 16, 0.76], [12225, 1, 7, 1.7], [412, 1, 7, 2.19], [346, 1, 7, 1.08], [20927, 1, 7, 1.39], [229, 1, 7, 4.95], [25, 1, 7, 1.46], [1767, 25, 7, 1.14], [45, 2, 7, 2.72], [998, 2, 7, 3.22], [3980, 4, 7, 2.46], [413, 1, 7, 2.06], [21269, 3, 7, 3.75], [346, 3, 7, 0.99], [3495, 3, 18, 2.26], [95, 3, 17, 0.96], [856, 1, 7, 0.69], [1766, 25, 7, 1.08], [5946, 1, 7, 1.98], [490, 1, 7, 1.02], [997, 2, 7, 2.24], [8898, 3, 7, 2.78], [34, 1, 7, 1.9], [1070, 7, 15, 0.85], [9372, 1, 7, 3.35], [9691, 1, 7, 2.44], [9690, 1, 7, 1.87], [11954, 1, 7, 0.87], [20498, 1, 7, 1.8], [14017, 3, 7, 2.0], [974, 3, 7, 2.14], [418, 2, 7, 0.89], [14037, 3, 9, 1.09], [22317, 3, 7, 0.98], [972, 3, 8, 1.64], [20498, 3, 8, 1.9], [1091, 1, 7, 1.27], [9828, 3, 7, 0.89], [8274, 3, 7, 0.89], [38, 1, 7, 1.9], [5584, 3, 7, 3.74], [5811, 3, 7, 3.52], [1414, 15, 7, 0.81], [12350, 1, 7, 1.02], [5813, 3, 7, 2.91], [2991, 1, 7, 2.72], [24, 1, 7, 2.0], [3048, 3, 7, 3.68], [110, 4, 7, 0.73], [1080, 3, 7, 1.59], [13034, 3, 8, 2.15], [8104, 1, 7, 0.85], [13260, 29, 7, 1.41], [1767, 2, 7, 1.14], [336, 15, 7, 0.98], [11811, 1, 7, 2.77], [955, 2, 7, 0.9], [8635, 3, 7, 0.96], [39, 1, 7, 1.14], [10780, 10, 7, 3.58], [2878, 1, 7, 1.84], [9082, 3, 24, 2.75], [3981, 3, 20, 3.12], [4203, 1, 7, 1.06], [5812, 3, 426, 3.19], [96, 11, 614, 2.87], [11737, 2, 37, 2.84], [9760, 29, 52, 3.16], [35, 1, 95, 3.11], [6158, 2, 189, 2.66], [335, 3, 1124, 2.07], [412, 1, 61, 3.86], [346, 1, 131, 2.38], [25, 1, 81, 3.21], [1767, 25, 125, 2.9], [45, 2, 79, 4.03], [998, 2, 172, 5.52], [3980, 4, 347, 4.26], [413, 1, 63, 3.36], [21269, 3, 250, 5.05], [346, 3, 526, 2.29], [3495, 3, 695, 4.07], [95, 3, 815, 2.77], [1766, 25, 136, 2.83], [5946, 1, 90, 3.28], [490, 1, 43, 2.79], [997, 2, 204, 3.54], [8898, 3, 213, 4.58], [34, 1, 95, 3.2], [1070, 7, 428, 2.63], [9372, 1, 193, 4.65], [9691, 1, 55, 3.74], [9690, 1, 64, 3.17], [11954, 1, 146, 2.68], [20498, 1, 71, 3.61], [14017, 3, 142, 3.71], [974, 3, 108, 3.45], [418, 2, 120, 2.19], [22317, 3, 269, 2.28], [972, 3, 428, 2.95], [20498, 3, 500, 3.2], [1091, 1, 20, 2.14], [9828, 3, 75, 2.19], [38, 1, 95, 3.2], [5584, 3, 198, 5.04], [5811, 3, 503, 4.82], [1414, 15, 64, 1.97], [12350, 1, 529, 2.33], [5813, 3, 503, 4.22], [2991, 1, 35, 4.02], [24, 1, 95, 3.3], [3048, 3, 232, 4.98], [110, 4, 90, 1.6], [1080, 3, 113, 2.89], [13034, 3, 503, 3.46], [8104, 1, 176, 2.15], [13260, 29, 62, 2.71], [1767, 2, 29, 2.44], [11811, 1, 385, 4.08], [955, 2, 93, 2.2], [39, 1, 95, 2.44], [10780, 10, 326, 4.89], [2878, 1, 68, 3.14], [9082, 3, 2084, 4.08], [3981, 3, 1370, 4.44], [4203, 1, 41, 2.36]]</t>
-  </si>
-  <si>
-    <t>[[2327, 2, 7, 1.0], [305, 2, 7, 1.32], [6935, 2, 11, 4.09], [2778, 2, 7, 1.43], [589, 2, 10, 0.87], [144, 2, 7, 1.04], [130, 1, 7, 2.36], [8915, 2, 8, 0.81], [143, 2, 7, 0.85], [2328, 2, 9, 1.39], [6936, 2, 7, 3.27], [8648, 2, 9, 3.08], [2775, 2, 9, 0.8], [205, 2, 7, 0.74], [8650, 2, 7, 2.95], [593, 2, 11, 0.97], [326, 2, 9, 2.24], [146, 2, 7, 1.1], [145, 2, 7, 0.96], [5493, 2, 7, 0.85], [3840, 1, 9, 1.09], [7036, 1, 9, 3.03], [2049, 3, 12, 0.72], [2776, 2, 9, 0.92], [88, 10, 16, 2.6], [141, 2, 7, 0.72], [7004, 1, 9, 3.07], [206, 2, 7, 0.74], [9760, 29, 7, 1.24], [990, 2, 7, 1.07], [1007, 2, 7, 1.35], [362, 2, 7, 1.0], [2055, 3, 7, 1.08], [2912, 1, 9, 1.91], [3893, 1, 7, 0.71], [142, 2, 7, 0.77], [2057, 3, 7, 1.08], [12870, 1, 7, 3.23], [9372, 1, 7, 3.54], [10993, 2, 7, 1.25], [2050, 3, 7, 1.08], [3889, 1, 7, 1.38], [2054, 3, 9, 0.8], [7084, 3, 7, 2.06], [523, 2, 7, 0.73], [2991, 3, 7, 3.64], [7886, 4, 7, 0.8], [10, 2, 7, 0.89], [3891, 1, 7, 0.76], [7573, 1, 16, 3.81], [1622, 1, 9, 0.84], [10149, 3, 21, 2.58], [5208, 3, 9, 1.29], [75, 2, 7, 1.93], [20927, 1, 7, 2.43], [3, 2, 7, 1.83], [11234, 2, 9, 1.8], [997, 2, 7, 2.43], [1886, 2, 9, 0.86], [12721, 2, 7, 2.81], [346, 3, 7, 1.31], [22247, 2, 7, 2.77], [996, 2, 7, 3.13], [229, 1, 7, 2.02], [998, 2, 7, 1.56], [94, 4, 7, 2.1], [2912, 2, 12, 3.19], [972, 3, 10, 1.52], [9491, 21, 26, 0.95], [35, 1, 7, 2.48], [76, 2, 7, 1.6], [413, 1, 7, 2.66], [33, 1, 7, 1.79], [83, 2, 7, 1.83], [13928, 1, 7, 1.35], [5076, 1, 7, 1.87], [2805, 137, 7, 2.56], [5209, 3, 7, 2.29], [8104, 1, 7, 1.7], [346, 1, 7, 0.83], [8676, 2, 7, 2.91], [7887, 4, 7, 1.87], [38, 1, 7, 2.18], [8898, 3, 7, 4.91], [12212, 29, 7, 0.9], [3495, 3, 16, 1.61], [84, 2, 7, 1.73], [34, 1, 7, 2.06], [11490, 1, 7, 0.89], [10407, 10, 10, 3.76], [632, 11, 21, 0.79], [11770, 1, 7, 1.65], [13928, 2, 7, 2.69], [995, 2, 7, 3.16], [11772, 1, 7, 0.84], [9690, 1, 7, 0.9], [411, 2, 7, 0.92], [39, 1, 7, 2.12], [9691, 1, 7, 1.39], [1703, 2, 7, 1.6], [11953, 1, 7, 1.0], [82, 2, 7, 1.58], [5584, 3, 7, 5.0], [12764, 2, 8, 1.75], [13893, 2, 7, 2.25], [7567, 3, 7, 2.08], [74, 1, 7, 3.33], [10410, 10, 15, 3.09], [972, 1, 7, 1.02], [5164, 1, 7, 3.75], [21269, 3, 7, 2.57], [1523, 1, 7, 1.16], [23961, 3, 7, 3.68], [2331, 1, 7, 1.23], [13023, 3, 8, 1.41], [10408, 10, 8, 3.61], [4253, 1, 7, 1.16], [1492, 1, 7, 0.87], [4076, 3, 7, 2.73], [6097, 80, 7, 1.46], [6805, 1, 7, 0.97], [12229, 2, 7, 0.94], [2438, 2, 8, 3.21], [13034, 3, 7, 2.36], [3429, 15, 7, 0.85], [3047, 3, 7, 2.46], [21059, 1, 7, 2.67], [8283, 2, 8, 1.19], [1243, 2, 7, 2.23], [3576, 29, 7, 0.81], [3430, 15, 7, 1.83], [2436, 4, 7, 1.08], [8674, 2, 7, 1.94], [6097, 29, 7, 1.46], [10780, 10, 7, 3.18], [19931, 1, 7, 2.43], [11812, 1, 7, 0.89], [413, 1, 72, 4.29], [33, 1, 92, 3.85], [13928, 1, 40, 3.42], [5076, 1, 108, 3.5], [2805, 137, 177, 4.19], [8104, 1, 170, 3.83], [346, 1, 152, 2.46], [8676, 2, 280, 4.54], [38, 1, 92, 3.81], [8898, 3, 243, 6.0], [12212, 29, 118, 2.53], [3495, 3, 795, 3.74], [84, 2, 33, 3.79], [34, 1, 92, 3.69], [11490, 1, 107, 2.52], [10407, 10, 990, 5.39], [632, 11, 406, 2.08], [11770, 1, 211, 3.28], [13928, 2, 23, 4.32], [995, 2, 236, 4.8], [11772, 1, 182, 2.97], [9690, 1, 25, 1.88], [411, 2, 54, 2.22], [39, 1, 92, 3.75], [9691, 1, 75, 3.02], [1703, 2, 160, 3.23], [11953, 1, 165, 3.14], [82, 2, 29, 2.88], [5584, 3, 198, 6.0], [12764, 2, 730, 3.37], [13893, 2, 268, 3.88], [7567, 3, 69, 3.71], [74, 1, 192, 4.96], [10410, 10, 990, 4.71], [972, 1, 98, 2.65], [5164, 1, 45, 5.38], [21269, 3, 286, 4.21], [1523, 1, 46, 2.79], [23961, 3, 288, 5.31], [2331, 1, 116, 2.86], [13023, 3, 589, 3.04], [10408, 10, 749, 5.25], [4253, 1, 168, 2.79], [1492, 1, 37, 2.5], [4076, 3, 196, 4.36], [6097, 80, 67, 3.09], [6805, 1, 445, 2.59], [12229, 2, 150, 2.57], [2438, 2, 614, 4.85], [13034, 3, 577, 3.98], [3429, 15, 26, 2.15], [3047, 3, 264, 4.09], [21059, 1, 314, 4.29], [8283, 2, 465, 2.82], [1243, 2, 96, 3.86], [3576, 29, 33, 2.44], [3430, 15, 68, 3.46], [2436, 4, 115, 2.71], [8674, 2, 280, 3.57], [6097, 29, 34, 3.09], [10780, 10, 367, 4.82], [19931, 1, 401, 4.06], [11812, 1, 157, 2.35]]</t>
-  </si>
-  <si>
-    <t>[[11685, 2, 7, 3.6], [6935, 2, 10, 2.95], [130, 1, 7, 2.44], [326, 2, 7, 2.44], [8648, 2, 7, 2.71], [144, 2, 7, 2.56], [2327, 2, 7, 0.98], [589, 2, 8, 0.61], [593, 2, 9, 1.22], [143, 2, 7, 1.94], [205, 2, 7, 1.43], [11681, 2, 9, 3.34], [305, 2, 7, 0.98], [2328, 2, 7, 1.45], [141, 2, 7, 1.58], [6936, 2, 9, 4.58], [151, 1, 7, 0.73], [2778, 2, 9, 1.07], [2049, 3, 14, 0.88], [146, 2, 7, 2.06], [88, 10, 18, 0.73], [615, 2, 7, 1.67], [9507, 3, 7, 1.16], [145, 2, 7, 2.56], [7036, 1, 7, 2.37], [1446, 2, 9, 1.54], [8853, 2, 7, 2.37], [362, 2, 7, 0.96], [3893, 1, 7, 1.38], [2055, 3, 7, 3.91], [75, 2, 7, 1.73], [417, 2, 7, 1.06], [11737, 2, 7, 1.76], [2050, 3, 7, 3.31], [12870, 1, 7, 3.69], [523, 2, 7, 1.05], [159, 3, 10, 1.05], [2057, 3, 7, 3.52], [142, 2, 7, 1.0], [2991, 3, 7, 4.3], [997, 2, 7, 1.5], [7084, 3, 9, 1.08], [9760, 29, 7, 1.36], [3982, 3, 17, 2.34], [11739, 2, 7, 1.41], [996, 2, 7, 1.06], [6158, 2, 9, 0.98], [998, 2, 7, 1.33], [98, 11, 16, 0.96], [84, 2, 7, 1.65], [9372, 1, 7, 4.45], [7885, 4, 7, 0.77], [10388, 2, 7, 2.13], [8672, 2, 9, 2.68], [972, 3, 7, 3.88], [8898, 3, 7, 5.0], [2912, 1, 7, 2.32], [3980, 4, 7, 2.36], [410, 1, 7, 3.58], [9491, 21, 16, 0.87], [10386, 2, 7, 2.91], [1492, 1, 7, 0.87], [13928, 1, 7, 2.32], [995, 2, 7, 2.23], [22316, 3, 7, 0.98], [22247, 2, 7, 2.12], [8677, 3, 9, 2.23], [3981, 3, 22, 2.14], [308, 1, 7, 3.28], [13893, 2, 7, 4.76], [2912, 2, 8, 3.12], [229, 1, 7, 1.35], [33, 1, 9, 4.53], [10631, 2, 7, 3.81], [11953, 1, 7, 0.9], [11490, 1, 7, 1.44], [35, 1, 9, 3.29], [159, 1, 7, 0.98], [7886, 4, 7, 0.94], [11770, 1, 7, 0.85], [22317, 3, 7, 1.42], [10407, 10, 10, 3.29], [10780, 10, 7, 3.28], [10410, 10, 10, 3.25], [1413, 15, 7, 1.12], [10149, 3, 21, 2.64], [6497, 1, 7, 0.87], [335, 3, 15, 3.87], [9691, 1, 7, 1.94], [74, 1, 7, 2.89], [10387, 2, 7, 1.83], [3478, 2, 7, 3.25], [972, 1, 7, 3.87], [12271, 2, 7, 2.91], [8897, 3, 9, 5.0], [345, 3, 7, 0.98], [9690, 1, 7, 2.1], [9971, 2, 7, 3.45], [159, 16, 7, 0.94], [2331, 1, 7, 3.73], [9082, 3, 29, 2.42], [3048, 3, 7, 1.77], [37, 1, 7, 1.27], [4076, 3, 7, 1.64], [11085, 2, 8, 2.78], [34, 1, 7, 1.04], [23611, 3, 7, 0.81], [7704, 2, 7, 3.16], [12721, 2, 7, 1.87], [11404, 2, 7, 0.83], [1163, 3, 7, 1.18], [20498, 3, 8, 2.71], [1523, 1, 7, 1.54], [11510, 3, 8, 2.0], [10936, 2, 7, 3.27], [45, 2, 7, 0.89], [4001, 3, 14, 2.5], [12764, 2, 8, 1.47], [9965, 2, 7, 2.62], [105, 3, 7, 0.98], [9964, 2, 7, 3.45], [38, 1, 7, 1.27], [215, 4, 7, 3.06], [1895, 3, 7, 1.42], [12858, 1, 7, 0.91], [10408, 10, 8, 3.19], [8635, 3, 7, 2.86], [5812, 3, 7, 1.86], [10411, 10, 8, 3.35], [11738, 2, 7, 1.69], [12212, 29, 7, 0.87], [2805, 137, 8, 1.2], [8659, 1, 7, 3.43], [11812, 1, 7, 0.89], [192, 3, 15, 3.61], [10093, 3, 17, 1.87], [2438, 2, 8, 3.23], [2912, 2, 284, 4.57], [229, 1, 72, 2.8], [10631, 2, 74, 4.71], [11953, 1, 176, 2.34], [11490, 1, 94, 2.88], [159, 1, 21, 2.18], [11770, 1, 160, 2.79], [22317, 3, 232, 2.88], [10407, 10, 1010, 4.71], [10780, 10, 318, 4.72], [10410, 10, 1010, 4.67], [1413, 15, 35, 2.02], [10149, 3, 755, 4.09], [6497, 1, 33, 2.31], [335, 3, 989, 5.33], [9691, 1, 40, 3.79], [74, 1, 148, 4.34], [10387, 2, 187, 3.27], [12271, 2, 33, 4.11], [8897, 3, 205, 6.0], [345, 3, 258, 2.42], [9690, 1, 65, 3.54], [9971, 2, 234, 4.89], [159, 16, 41, 2.15], [2331, 1, 100, 5.17], [9082, 3, 2125, 3.83], [3048, 3, 234, 3.22], [37, 1, 96, 2.72], [4076, 3, 174, 3.09], [11085, 2, 464, 4.22], [34, 1, 96, 2.49], [23611, 3, 304, 2.25], [7704, 2, 152, 4.61], [12721, 2, 248, 3.32], [11404, 2, 55, 2.03], [20498, 3, 505, 4.16], [1523, 1, 41, 2.99], [11510, 3, 510, 3.44], [10936, 2, 115, 4.72], [45, 2, 95, 2.34], [4001, 3, 684, 3.95], [12764, 2, 645, 2.91], [9965, 2, 234, 4.06], [105, 3, 213, 2.42], [9964, 2, 234, 4.89], [38, 1, 96, 2.72], [215, 4, 32, 4.51], [1895, 3, 264, 2.86], [12858, 1, 505, 2.36], [10408, 10, 662, 4.65], [8635, 3, 291, 4.3], [5812, 3, 520, 3.31], [10411, 10, 662, 4.81], [11738, 2, 20, 2.59], [12212, 29, 104, 2.31], [2805, 137, 160, 2.64], [8659, 1, 103, 4.88], [11812, 1, 208, 2.33], [192, 3, 1229, 5.06], [10093, 3, 713, 3.33], [2438, 2, 542, 4.68]]</t>
-  </si>
-  <si>
-    <t>[[326, 2, 8, 1.03], [6935, 2, 23, 3.05], [2049, 3, 13, 0.88], [362, 2, 7, 2.31], [589, 2, 12, 0.68], [141, 2, 7, 1.04], [75, 2, 9, 2.45], [130, 1, 7, 1.91], [3, 2, 9, 0.82], [1776, 1, 7, 1.12], [205, 2, 7, 1.21], [8672, 2, 12, 2.41], [2778, 2, 6, 1.06], [6936, 2, 10, 2.79], [7886, 4, 7, 1.01], [593, 2, 14, 1.11], [305, 2, 7, 0.92], [206, 2, 7, 1.21], [151, 1, 7, 0.85], [1777, 1, 7, 2.22], [8648, 2, 7, 3.21], [2328, 2, 7, 0.94], [88, 10, 17, 1.94], [11681, 2, 10, 5.0], [990, 2, 9, 0.92], [8650, 2, 9, 3.25], [5151, 2, 7, 1.73], [412, 1, 7, 2.17], [2050, 3, 7, 1.22], [144, 2, 7, 1.43], [2991, 3, 7, 3.64], [76, 2, 9, 2.75], [345, 3, 10, 1.82], [10149, 3, 25, 3.26], [57, 1, 9, 0.68], [22247, 2, 9, 3.0], [146, 2, 7, 2.68], [2054, 3, 7, 4.0], [45, 2, 7, 2.65], [7004, 1, 7, 0.9], [417, 2, 9, 1.87], [143, 2, 7, 1.34], [201, 3, 10, 2.56], [21793, 1, 7, 3.62], [167, 3, 7, 2.0], [413, 1, 7, 1.23], [2055, 3, 7, 2.83], [168, 3, 7, 1.38], [74, 1, 7, 2.52], [346, 1, 7, 0.74], [7084, 3, 7, 2.45], [11234, 2, 9, 0.93], [12721, 2, 10, 1.92], [308, 1, 9, 4.83], [10, 2, 11, 2.55], [335, 3, 18, 3.91], [7036, 1, 7, 3.29], [3495, 3, 21, 1.64], [5081, 2, 9, 0.84], [13028, 3, 7, 0.96], [10825, 21, 14, 1.17], [410, 1, 7, 1.23], [12870, 1, 7, 4.49], [8649, 2, 7, 2.97], [11404, 2, 9, 1.06], [79, 1, 7, 0.73], [3889, 1, 7, 2.38], [96, 11, 23, 0.84], [1492, 1, 7, 1.2], [23, 1, 7, 2.37], [5208, 3, 13, 1.56], [3893, 1, 7, 1.67], [9827, 3, 7, 0.86], [1504, 2, 9, 0.89], [94, 4, 7, 3.04], [13260, 29, 7, 0.89], [7005, 1, 7, 0.94], [5812, 3, 8, 2.16], [3891, 1, 9, 1.05], [1490, 1, 7, 1.35], [411, 2, 7, 1.21], [25, 1, 7, 1.83], [12353, 1, 6, 1.54], [33, 1, 7, 1.27], [21269, 3, 7, 4.99], [12349, 1, 7, 4.0], [998, 2, 9, 2.41], [5086, 1, 6, 2.04], [9069, 1, 7, 3.12], [7567, 3, 7, 3.13], [229, 1, 7, 4.95], [3980, 4, 9, 3.25], [2878, 1, 7, 1.63], [20927, 1, 7, 1.5], [346, 3, 8, 1.24], [35, 1, 7, 1.93], [1703, 2, 7, 3.38], [9691, 1, 7, 2.81], [5209, 3, 7, 1.17], [997, 2, 7, 1.16], [11914, 1, 9, 1.52], [14037, 3, 7, 0.69], [8274, 3, 7, 2.1], [5584, 3, 7, 3.61], [5660, 2, 7, 1.94], [11811, 1, 7, 1.92], [1070, 7, 13, 1.16], [159, 3, 10, 1.34], [1519, 3, 21, 0.79], [24, 1, 7, 2.26], [8898, 3, 7, 5.0], [996, 2, 7, 4.42], [1091, 1, 7, 1.1], [23961, 3, 7, 2.61], [1124, 2, 9, 0.91], [13034, 3, 10, 2.76], [9081, 3, 12, 3.64], [12661, 1, 7, 4.04], [952, 4, 7, 4.6], [27, 1, 7, 2.37], [8945, 3, 10, 5.0], [1413, 15, 7, 1.19], [22317, 3, 8, 0.9], [336, 15, 7, 0.8], [10529, 29, 7, 2.85], [9372, 1, 7, 1.55], [1163, 3, 7, 1.36], [12225, 1, 7, 1.12], [9082, 3, 21, 1.17], [6097, 29, 7, 3.08], [4203, 1, 7, 1.02], [9760, 29, 7, 0.87], [66, 16, 7, 0.87], [2109, 3, 15, 0.88], [8635, 3, 7, 1.16], [12346, 1, 7, 1.94], [5811, 3, 7, 1.9], [2104, 3, 10, 2.23], [3889, 1, 98, 3.54], [96, 11, 666, 2.46], [1492, 1, 29, 2.36], [23, 1, 102, 3.52], [3893, 1, 98, 2.83], [9827, 3, 69, 2.51], [1504, 2, 161, 2.54], [94, 4, 94, 4.2], [13260, 29, 57, 2.5], [7005, 1, 55, 1.97], [5812, 3, 459, 3.78], [3891, 1, 98, 3.02], [1490, 1, 40, 2.51], [411, 2, 50, 1.98], [25, 1, 88, 3.4], [12353, 1, 474, 3.21], [33, 1, 88, 2.86], [21269, 3, 230, 6.0], [12349, 1, 563, 5.17], [998, 2, 188, 4.57], [5086, 1, 144, 3.69], [7567, 3, 32, 4.78], [3980, 4, 377, 4.41], [2878, 1, 63, 2.79], [346, 3, 497, 2.4], [35, 1, 88, 3.09], [1703, 2, 149, 4.53], [9691, 1, 59, 4.46], [5209, 3, 260, 2.35], [997, 2, 188, 2.76], [11914, 1, 68, 3.17], [5584, 3, 197, 4.77], [5660, 2, 138, 3.59], [11811, 1, 416, 3.08], [1070, 7, 467, 2.31], [1519, 3, 1313, 2.31], [24, 1, 88, 3.42], [8898, 3, 221, 6.0], [996, 2, 217, 5.57], [1091, 1, 22, 2.75], [23961, 3, 269, 3.76], [1124, 2, 172, 2.07], [13034, 3, 459, 4.14], [9081, 3, 359, 5.3], [12661, 1, 64, 5.2], [952, 4, 57, 5.76], [27, 1, 77, 3.39], [1413, 15, 69, 2.22], [22317, 3, 291, 2.06], [336, 15, 52, 2.46], [10529, 29, 37, 4.0], [9372, 1, 210, 2.71], [12225, 1, 153, 2.28], [9082, 3, 1955, 2.92], [6097, 29, 32, 4.24], [4203, 1, 45, 2.18], [9760, 29, 66, 2.03], [66, 16, 71, 2.03], [2109, 3, 433, 2.03], [12346, 1, 563, 3.1], [5811, 3, 541, 3.06], [2104, 3, 306, 3.39]]</t>
-  </si>
-  <si>
-    <t>[[88, 10, 20, 1.59], [8915, 2, 8, 0.81], [589, 2, 8, 0.87], [2327, 2, 7, 1.0], [2778, 2, 7, 0.8], [6935, 2, 11, 3.9], [2328, 2, 7, 1.46], [5493, 2, 7, 0.85], [305, 2, 6, 0.82], [615, 2, 9, 2.5], [326, 2, 9, 3.02], [6936, 2, 7, 3.27], [8650, 2, 7, 3.91], [8648, 2, 7, 3.18], [1446, 2, 7, 1.32], [7004, 1, 9, 3.07], [2049, 3, 12, 0.72], [593, 2, 11, 0.97], [143, 2, 7, 1.81], [205, 2, 7, 0.74], [10, 2, 7, 2.55], [144, 2, 7, 2.0], [7036, 1, 9, 3.03], [94, 4, 7, 2.1], [990, 2, 7, 1.45], [3893, 1, 7, 1.21], [146, 2, 7, 2.06], [141, 2, 7, 0.75], [12224, 1, 7, 0.89], [3891, 1, 7, 1.26], [362, 2, 7, 1.0], [206, 2, 7, 0.74], [2055, 3, 7, 1.08], [75, 2, 7, 2.39], [5208, 3, 9, 1.29], [3889, 1, 7, 1.88], [7886, 4, 7, 0.8], [10993, 2, 7, 1.25], [11234, 2, 9, 1.8], [2054, 3, 7, 1.93], [7005, 1, 9, 1.49], [12870, 1, 7, 3.23], [7084, 3, 7, 2.06], [3980, 4, 8, 2.39], [10149, 3, 21, 2.58], [145, 2, 7, 1.93], [2050, 3, 7, 1.08], [2912, 1, 7, 2.33], [5165, 1, 7, 2.5], [8672, 2, 9, 3.11], [20927, 1, 7, 2.43], [998, 2, 7, 1.5], [9760, 29, 9, 0.97], [972, 3, 10, 1.52], [3, 2, 7, 1.83], [3495, 3, 14, 1.61], [229, 1, 7, 0.94], [6158, 2, 9, 4.29], [346, 3, 7, 1.31], [5076, 1, 7, 0.9], [5165, 2, 8, 3.64], [142, 2, 7, 0.69], [7887, 4, 7, 1.87], [523, 2, 7, 0.69], [74, 1, 7, 3.33], [9372, 1, 7, 3.08], [11953, 1, 7, 1.0], [11770, 1, 9, 0.96], [1492, 1, 7, 0.97], [12721, 2, 7, 2.42], [9491, 21, 26, 0.95], [3981, 3, 22, 1.31], [2912, 2, 12, 3.19], [2423, 80, 7, 3.79], [11772, 1, 7, 0.89], [6497, 1, 7, 1.09], [5434, 1, 7, 1.6], [7573, 1, 16, 3.81], [5584, 3, 7, 5.0], [12229, 2, 7, 0.94], [2438, 2, 8, 3.21], [346, 1, 7, 0.83], [335, 3, 15, 0.72], [10388, 2, 7, 2.08], [10407, 10, 10, 3.76], [11179, 1, 9, 1.07], [823, 1, 7, 2.33], [3975, 4, 7, 2.49], [6496, 1, 7, 1.94], [5209, 3, 9, 1.29], [2805, 137, 7, 2.56], [4253, 1, 7, 1.04], [11812, 1, 7, 0.84], [3900, 3, 7, 3.48], [12764, 2, 10, 1.04], [1622, 1, 7, 0.87], [1703, 2, 7, 1.6], [11490, 1, 7, 0.89], [8676, 2, 7, 2.91], [972, 1, 7, 1.94], [13893, 2, 7, 2.25], [22247, 2, 7, 3.16], [412, 1, 7, 2.06], [6097, 80, 7, 1.46], [2991, 3, 7, 4.1], [10386, 2, 7, 4.24], [11814, 1, 7, 0.92], [7567, 3, 7, 2.08], [6805, 1, 7, 0.97], [10410, 10, 15, 3.17], [8635, 3, 7, 2.25], [1274, 1, 7, 1.26], [37, 1, 7, 2.55], [788, 2, 7, 0.9], [8283, 2, 8, 1.19], [10408, 10, 8, 3.61], [389, 4, 7, 2.81], [8104, 1, 7, 2.1], [12212, 29, 7, 0.9], [35, 1, 7, 2.17], [23611, 3, 8, 0.74], [114, 3, 7, 2.02], [1895, 3, 7, 4.16], [76, 2, 7, 0.9], [95, 3, 22, 0.85], [38, 1, 7, 1.27], [12979, 25, 12, 1.91], [3979, 3, 13, 0.75], [10385, 2, 7, 1.0], [12501, 1, 7, 2.39], [220, 4, 7, 0.85], [8274, 3, 7, 2.23], [4232, 80, 7, 3.58], [24257, 1, 7, 0.92], [5435, 1, 7, 1.49], [9690, 1, 7, 0.9], [8659, 1, 7, 1.64], [440, 3, 7, 1.44], [3981, 3, 1366, 3.43], [2912, 2, 372, 4.81], [2423, 80, 151, 5.42], [11772, 1, 182, 2.97], [6497, 1, 37, 2.72], [5434, 1, 48, 3.23], [7573, 1, 306, 5.44], [5584, 3, 198, 6.0], [12229, 2, 150, 2.57], [2438, 2, 614, 4.85], [346, 1, 152, 2.46], [335, 3, 864, 2.2], [10388, 2, 179, 4.21], [10407, 10, 990, 5.39], [11179, 1, 73, 3.56], [823, 1, 40, 3.96], [3975, 4, 473, 4.11], [6496, 1, 39, 3.57], [2805, 137, 177, 4.19], [4253, 1, 142, 3.13], [11812, 1, 196, 2.98], [12764, 2, 611, 3.42], [1622, 1, 53, 2.97], [1703, 2, 160, 3.23], [11490, 1, 107, 2.52], [8676, 2, 280, 4.54], [972, 1, 49, 3.66], [13893, 2, 268, 3.88], [22247, 2, 233, 4.79], [412, 1, 82, 3.69], [6097, 80, 67, 3.09], [2991, 3, 158, 5.73], [10386, 2, 179, 6.0], [11814, 1, 183, 2.49], [7567, 3, 69, 3.71], [6805, 1, 445, 2.59], [10410, 10, 1142, 4.79], [1274, 1, 81, 2.89], [37, 1, 54, 3.85], [8283, 2, 465, 2.82], [10408, 10, 749, 5.25], [389, 4, 201, 4.44], [8104, 1, 200, 3.73], [12212, 29, 118, 2.53], [35, 1, 109, 3.8], [23611, 3, 343, 2.37], [114, 3, 238, 3.65], [1895, 3, 293, 5.79], [76, 2, 107, 2.53], [95, 3, 1109, 2.46], [38, 1, 109, 2.9], [12979, 25, 641, 3.53], [3979, 3, 801, 2.39], [10385, 2, 200, 2.62], [12501, 1, 291, 4.02], [220, 4, 48, 2.48], [4232, 80, 145, 5.21], [24257, 1, 46, 1.9], [9690, 1, 25, 1.88], [8659, 1, 118, 3.27], [440, 3, 192, 3.07]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 10, 2.95], [615, 2, 7, 1.17], [305, 2, 7, 0.98], [2778, 2, 7, 1.07], [6936, 2, 9, 3.69], [205, 2, 7, 0.98], [130, 1, 7, 1.94], [144, 2, 7, 0.9], [8648, 2, 7, 2.71], [2049, 3, 14, 0.88], [88, 10, 18, 0.73], [7036, 1, 7, 2.37], [326, 2, 7, 1.94], [589, 2, 8, 0.61], [8650, 2, 7, 2.48], [593, 2, 9, 1.29], [11681, 2, 9, 3.84], [2327, 2, 7, 0.98], [3893, 1, 7, 0.75], [141, 2, 9, 1.58], [151, 1, 7, 1.73], [9507, 3, 7, 0.66], [11685, 2, 7, 3.35], [248, 1, 7, 0.79], [146, 2, 7, 2.06], [2050, 3, 7, 3.31], [2055, 3, 7, 3.41], [143, 2, 7, 0.98], [3980, 4, 7, 2.36], [2054, 3, 7, 3.66], [8672, 2, 9, 2.68], [7885, 4, 7, 0.77], [362, 2, 7, 0.91], [12870, 1, 7, 3.71], [2057, 3, 7, 3.52], [7886, 4, 7, 1.23], [13028, 3, 7, 1.25], [145, 2, 7, 1.98], [7084, 3, 7, 1.44], [3495, 3, 21, 1.64], [523, 2, 7, 1.05], [3975, 4, 7, 2.49], [2991, 3, 7, 4.3], [10149, 3, 21, 2.64], [9760, 29, 9, 0.86], [11404, 2, 7, 0.72], [20927, 1, 7, 2.25], [142, 2, 7, 1.0], [3982, 3, 17, 2.34], [3981, 3, 21, 2.03], [6158, 2, 7, 1.75], [417, 2, 7, 1.06], [214, 3, 15, 0.74], [2912, 1, 7, 3.1], [11953, 1, 7, 0.9], [997, 2, 7, 4.76], [22316, 3, 7, 0.98], [33, 1, 9, 4.53], [229, 1, 7, 1.35], [7887, 4, 7, 2.25], [6497, 1, 7, 2.52], [1492, 1, 7, 2.26], [346, 3, 7, 0.88], [998, 2, 7, 5.0], [972, 3, 9, 3.74], [996, 2, 9, 3.08], [35, 1, 9, 4.53], [389, 4, 7, 2.27], [410, 1, 7, 3.58], [11770, 1, 7, 0.85], [2912, 2, 10, 2.79], [336, 15, 7, 1.28], [7567, 3, 9, 3.64], [74, 1, 7, 1.8], [2104, 3, 10, 0.73], [1413, 15, 7, 1.12], [6496, 1, 7, 1.06], [12721, 2, 7, 1.87], [12212, 29, 7, 0.87], [22317, 3, 7, 1.42], [4176, 4, 9, 3.25], [8673, 2, 7, 4.12], [8677, 3, 7, 2.57], [8676, 2, 7, 1.7], [11085, 2, 8, 3.16], [37, 1, 7, 1.27], [1274, 1, 7, 1.02], [21269, 3, 7, 5.0], [22247, 2, 7, 3.16], [7573, 1, 11, 4.14], [13023, 3, 7, 2.44], [9372, 1, 7, 4.45], [39, 1, 7, 1.79], [823, 1, 7, 0.92], [10388, 2, 7, 2.26], [6494, 1, 7, 0.87], [345, 3, 7, 0.98], [201, 3, 7, 2.36], [12271, 2, 7, 1.35], [10936, 2, 7, 3.27], [96, 11, 22, 2.04], [10408, 10, 8, 3.19], [3577, 25, 7, 1.14], [12225, 1, 7, 2.38], [3, 2, 7, 1.85], [10631, 2, 7, 3.81], [2805, 137, 8, 1.2], [11812, 1, 7, 0.89], [9691, 1, 7, 1.44], [1490, 1, 7, 2.08], [1414, 15, 7, 1.05], [20498, 3, 8, 2.71], [23961, 3, 7, 2.91], [36, 1, 7, 1.27], [192, 3, 15, 3.61], [9690, 1, 7, 2.1], [12764, 2, 8, 1.47], [10386, 2, 7, 1.91], [13928, 1, 7, 2.9], [346, 1, 7, 1.06], [3048, 3, 7, 1.77], [8898, 3, 7, 3.58], [10407, 10, 10, 3.29], [3576, 25, 7, 1.44], [11814, 1, 7, 0.92], [13893, 2, 7, 4.76], [11089, 1, 7, 1.17], [972, 1, 7, 1.51], [1339, 3, 15, 0.79], [5812, 3, 7, 1.86], [10939, 2, 7, 3.72], [1523, 1, 7, 1.54], [1163, 3, 7, 1.18], [491, 10, 8, 2.07], [13035, 3, 7, 2.54], [19931, 1, 7, 2.43], [2878, 1, 7, 0.75], [8659, 1, 7, 3.43], [6496, 1, 35, 2.5], [12721, 2, 248, 3.32], [12212, 29, 104, 2.31], [22317, 3, 232, 2.88], [4176, 4, 353, 4.69], [8673, 2, 242, 5.57], [8677, 3, 216, 4.01], [8676, 2, 248, 3.14], [11085, 2, 391, 4.64], [37, 1, 96, 2.72], [1274, 1, 71, 2.46], [21269, 3, 216, 6.0], [22247, 2, 207, 4.6], [7573, 1, 302, 5.59], [13023, 3, 510, 3.88], [9372, 1, 196, 5.89], [39, 1, 96, 3.24], [823, 1, 35, 2.36], [10388, 2, 158, 4.21], [6494, 1, 45, 2.31], [345, 3, 258, 2.42], [201, 3, 258, 3.81], [12271, 2, 55, 2.8], [10936, 2, 115, 4.72], [96, 11, 293, 2.94], [10408, 10, 662, 4.65], [3577, 25, 77, 2.59], [12225, 1, 142, 3.82], [3, 2, 106, 3.3], [10631, 2, 74, 4.71], [2805, 137, 160, 2.64], [11812, 1, 208, 2.33], [9691, 1, 66, 2.89], [1490, 1, 44, 3.53], [1414, 15, 35, 1.95], [20498, 3, 505, 4.16], [23961, 3, 255, 4.35], [36, 1, 96, 2.72], [192, 3, 1229, 5.06], [9690, 1, 65, 3.54], [12764, 2, 645, 2.91], [10386, 2, 187, 3.36], [13928, 1, 40, 4.35], [346, 1, 134, 2.51], [3048, 3, 234, 3.22], [8898, 3, 243, 5.03], [10407, 10, 1010, 4.71], [3576, 25, 88, 2.88], [11814, 1, 195, 2.37], [13893, 2, 231, 6.0], [11089, 1, 149, 2.62], [972, 1, 85, 2.95], [5812, 3, 520, 3.31], [10939, 2, 115, 5.16], [1523, 1, 41, 2.99], [491, 10, 381, 3.52], [13035, 3, 260, 3.99], [19931, 1, 354, 3.88], [2878, 1, 71, 2.2], [8659, 1, 103, 4.88]]</t>
-  </si>
-  <si>
-    <t>[[141, 2, 7, 0.88], [2328, 2, 9, 1.85], [8650, 2, 9, 2.38], [5491, 2, 9, 0.9], [362, 2, 9, 0.81], [130, 1, 9, 1.36], [589, 2, 7, 1.45], [2327, 2, 9, 1.82], [326, 2, 7, 2.16], [8672, 2, 12, 2.4], [417, 2, 9, 0.87], [6935, 2, 19, 4.24], [206, 2, 9, 0.77], [6936, 2, 9, 2.7], [142, 2, 9, 0.87], [8915, 2, 7, 1.21], [11838, 2, 9, 1.02], [12721, 2, 11, 1.45], [2049, 3, 14, 1.23], [1446, 2, 7, 0.85], [2778, 2, 13, 1.34], [523, 2, 7, 1.72], [8676, 2, 7, 1.0], [305, 2, 7, 1.89], [411, 2, 7, 0.83], [10574, 3, 9, 2.49], [12349, 1, 7, 1.02], [145, 2, 7, 2.13], [8675, 2, 9, 2.44], [990, 2, 7, 2.15], [76, 2, 7, 1.62], [143, 2, 7, 0.92], [8673, 2, 7, 2.91], [11836, 2, 9, 0.86], [146, 2, 7, 2.68], [6158, 2, 10, 2.15], [151, 1, 7, 0.85], [3495, 3, 21, 2.26], [2050, 3, 7, 0.64], [10149, 3, 21, 2.47], [2055, 3, 7, 2.04], [12350, 1, 7, 1.02], [2054, 3, 7, 1.4], [75, 2, 7, 3.21], [144, 2, 7, 2.63], [7885, 4, 7, 1.31], [2859, 15, 7, 1.6], [88, 10, 16, 2.1], [10993, 2, 7, 1.44], [3848, 2, 7, 2.06], [7705, 2, 7, 2.28], [2423, 80, 9, 4.85], [2424, 29, 9, 3.34], [2423, 29, 7, 1.5], [12351, 1, 7, 0.85], [2424, 80, 7, 4.47], [60, 3, 8, 3.51], [1519, 3, 13, 0.68], [201, 3, 7, 2.66], [1414, 15, 7, 0.67], [12373, 1, 11, 2.99], [345, 3, 7, 1.99], [5208, 3, 13, 0.87], [6952, 1, 7, 0.97], [20927, 1, 7, 1.89], [11954, 1, 7, 0.85], [432, 3, 9, 4.04], [3, 2, 7, 2.93], [3430, 15, 7, 2.08], [7004, 1, 7, 1.96], [7886, 4, 7, 0.81], [11811, 1, 7, 1.93], [2703, 3, 7, 4.17], [13928, 1, 9, 0.75], [2331, 1, 7, 1.16], [114, 3, 7, 1.1], [3429, 15, 7, 0.94], [11089, 1, 7, 0.83], [105, 3, 7, 1.05], [5584, 3, 7, 5.0], [3981, 3, 13, 0.91], [944, 15, 7, 0.77], [308, 1, 11, 2.72], [7706, 2, 7, 2.62], [10407, 10, 10, 3.25], [8274, 3, 7, 3.88], [1886, 2, 7, 0.67], [1490, 1, 7, 3.85], [10410, 10, 10, 3.76], [22317, 3, 10, 0.81], [94, 4, 7, 3.11], [3891, 1, 7, 1.58], [3893, 1, 7, 2.19], [8898, 3, 7, 4.88], [9690, 1, 7, 1.75], [9082, 3, 24, 2.83], [7708, 2, 7, 2.62], [3028, 3, 7, 0.83], [6497, 1, 7, 0.85], [9342, 2, 8, 0.85], [10409, 10, 11, 3.34], [10406, 10, 12, 3.4], [1274, 1, 7, 2.39], [952, 4, 7, 4.27], [20196, 2, 7, 3.8], [823, 1, 7, 4.28], [21003, 2, 7, 3.61], [10897, 1, 13, 0.84], [10408, 10, 10, 3.27], [20682, 1, 7, 2.02], [10398, 2, 7, 3.31], [5812, 3, 7, 2.91], [5946, 1, 7, 2.83], [13928, 2, 7, 2.9], [11677, 1, 7, 2.24], [4253, 1, 7, 1.41], [957, 2, 7, 0.92], [6630, 3, 7, 3.56], [7703, 2, 7, 2.62], [186, 3, 12, 0.97], [20680, 1, 7, 1.33], [95, 3, 13, 2.7], [963, 3, 7, 4.0], [20555, 2, 7, 0.85], [8635, 3, 7, 3.88], [2438, 2, 8, 3.32], [2805, 137, 10, 5.0], [1050, 2, 7, 0.69], [8897, 3, 7, 4.88], [3478, 2, 7, 2.46], [3980, 4, 7, 2.49], [3889, 1, 7, 2.19], [11603, 2, 7, 2.95], [9068, 1, 7, 3.0], [5811, 3, 8, 3.52], [9, 1, 7, 0.75], [11812, 1, 7, 0.89], [9491, 21, 16, 4.69], [2703, 3, 308, 5.95], [13928, 1, 41, 3.1], [2331, 1, 119, 2.94], [114, 3, 245, 2.88], [3429, 15, 18, 2.01], [11089, 1, 174, 2.61], [105, 3, 245, 2.82], [5584, 3, 230, 6.0], [3981, 3, 1690, 2.69], [944, 15, 15, 1.84], [308, 1, 169, 4.5], [7706, 2, 178, 4.4], [10407, 10, 1171, 5.03], [1886, 2, 158, 2.45], [1490, 1, 49, 5.63], [10410, 10, 1171, 5.54], [22317, 3, 268, 3.13], [94, 4, 117, 4.89], [3891, 1, 125, 3.36], [3893, 1, 123, 3.97], [8898, 3, 283, 6.0], [9690, 1, 51, 3.35], [9082, 3, 2464, 4.58], [7708, 2, 178, 4.4], [3028, 3, 55, 1.9], [6497, 1, 38, 2.63], [9342, 2, 156, 1.93], [10409, 10, 1765, 5.13], [10406, 10, 1765, 5.19], [1274, 1, 55, 3.99], [952, 4, 72, 6.0], [20196, 2, 285, 5.58], [823, 1, 39, 6.0], [21003, 2, 285, 5.4], [10897, 1, 355, 2.62], [10408, 10, 768, 5.06], [20682, 1, 622, 3.81], [10398, 2, 73, 4.73], [5812, 3, 594, 4.7], [5946, 1, 124, 4.61], [13928, 2, 23, 4.68], [11677, 1, 450, 4.02], [4253, 1, 173, 3.19], [957, 2, 108, 2.7], [6630, 3, 94, 5.34], [7703, 2, 178, 4.4], [186, 3, 668, 2.76], [20680, 1, 622, 3.12], [95, 3, 1066, 4.47], [963, 3, 394, 5.77], [20555, 2, 58, 2.63], [2438, 2, 629, 5.11], [2805, 137, 178, 6.0], [8897, 3, 283, 6.0], [3980, 4, 485, 4.28], [3889, 1, 123, 3.97], [11603, 2, 191, 4.74], [5811, 3, 396, 5.13], [9, 1, 12, 1.82], [11812, 1, 120, 2.31], [9491, 21, 2039, 6.0]]</t>
-  </si>
-  <si>
-    <t>[[2778, 2, 14, 1.08], [6935, 2, 23, 5.0], [6936, 2, 9, 2.9], [305, 2, 7, 1.46], [8672, 2, 12, 2.4], [615, 2, 7, 1.73], [1504, 2, 11, 1.4], [145, 2, 7, 0.9], [12721, 2, 11, 1.74], [2327, 2, 9, 1.82], [146, 2, 7, 2.14], [143, 2, 7, 1.94], [2328, 2, 9, 1.85], [11737, 2, 7, 1.51], [141, 2, 7, 2.25], [5491, 2, 9, 0.86], [205, 2, 7, 1.24], [144, 2, 7, 2.11], [8650, 2, 11, 4.63], [8676, 2, 7, 1.6], [8673, 2, 9, 2.44], [417, 2, 7, 2.25], [589, 2, 6, 0.79], [3, 2, 7, 1.27], [206, 2, 7, 0.74], [22247, 2, 7, 2.33], [6097, 80, 7, 3.92], [6497, 1, 7, 0.85], [11836, 2, 7, 1.44], [2055, 3, 7, 0.9], [990, 2, 7, 1.41], [12344, 1, 7, 2.03], [523, 2, 7, 1.27], [593, 2, 10, 0.89], [6097, 29, 7, 4.54], [6098, 80, 7, 4.99], [12345, 1, 7, 3.92], [11739, 2, 7, 1.04], [88, 10, 17, 2.02], [2054, 3, 7, 1.19], [8915, 2, 7, 0.79], [75, 2, 7, 0.9], [326, 2, 7, 0.85], [60, 3, 8, 1.51], [1492, 1, 7, 1.39], [1413, 15, 7, 1.49], [411, 2, 7, 0.74], [1050, 2, 7, 0.73], [6496, 1, 7, 2.07], [6098, 29, 7, 4.99], [947, 15, 7, 0.85], [7704, 2, 7, 2.62], [10149, 3, 21, 2.64], [345, 3, 7, 2.21], [2859, 15, 7, 1.7], [11738, 2, 7, 1.34], [1243, 2, 7, 2.14], [13264, 29, 7, 1.0], [1049, 2, 7, 0.73], [1490, 1, 7, 0.69], [229, 1, 7, 3.98], [964, 15, 7, 0.77], [7004, 1, 7, 1.56], [201, 3, 7, 3.31], [2331, 1, 7, 1.0], [10407, 10, 10, 3.25], [186, 3, 12, 1.53], [5208, 3, 13, 0.98], [22558, 3, 6, 1.74], [114, 3, 7, 2.16], [432, 3, 7, 4.24], [1163, 3, 7, 2.79], [7705, 2, 7, 2.62], [957, 2, 7, 1.43], [7706, 2, 7, 2.62], [12229, 2, 7, 0.87], [13928, 1, 7, 2.9], [2421, 80, 7, 2.08], [3478, 2, 7, 2.46], [11404, 2, 7, 0.83], [10408, 10, 10, 3.27], [10406, 10, 12, 3.4], [7036, 1, 7, 0.87], [19687, 1, 9, 2.21], [11687, 2, 7, 0.96], [10410, 10, 10, 3.76], [12870, 1, 7, 3.68], [11490, 1, 7, 1.52], [1886, 2, 7, 0.67], [9784, 1, 7, 1.94], [410, 1, 7, 1.17], [11159, 1, 14, 3.48], [22125, 2, 7, 0.69], [2703, 3, 7, 4.17], [21781, 2, 7, 0.9], [11161, 1, 10, 2.68], [9760, 29, 7, 1.64], [956, 2, 7, 1.02], [7708, 2, 7, 2.62], [12373, 1, 11, 2.99], [9065, 2, 7, 0.92], [5976, 1, 7, 3.81], [94, 4, 7, 1.16], [11689, 2, 7, 0.9], [105, 3, 7, 1.6], [8599, 1, 7, 0.98], [1274, 1, 7, 3.68], [2805, 137, 10, 2.31], [9372, 1, 7, 3.35], [9209, 29, 7, 1.04], [11953, 1, 7, 0.9], [5584, 3, 7, 5.0], [11811, 1, 7, 1.93], [4253, 1, 7, 1.41], [11160, 1, 7, 2.56], [8600, 1, 7, 1.96], [3495, 3, 21, 1.51], [247, 1, 7, 2.84], [2991, 3, 7, 4.45], [8283, 2, 8, 0.63], [21269, 3, 7, 3.75], [12764, 2, 8, 1.47], [20927, 1, 7, 1.35], [8285, 2, 8, 0.85], [11887, 2, 8, 1.0], [1691, 1, 7, 2.56], [20555, 2, 7, 0.9], [9491, 21, 16, 3.25], [5076, 1, 7, 2.16], [11677, 1, 7, 2.24], [4372, 1, 7, 0.96], [3934, 5, 9, 1.11], [12304, 1, 7, 4.83], [8635, 3, 7, 2.24], [12979, 25, 15, 1.91], [13198, 29, 7, 2.44], [3230, 1, 7, 0.83], [7705, 2, 178, 4.4], [957, 2, 91, 3.21], [7706, 2, 178, 4.4], [12229, 2, 153, 2.65], [13928, 1, 47, 4.68], [2421, 80, 71, 3.15], [11404, 2, 35, 1.9], [10408, 10, 768, 5.06], [10406, 10, 1765, 5.19], [7036, 1, 128, 2.65], [19687, 1, 26, 4.49], [11687, 2, 102, 2.03], [10410, 10, 1171, 5.54], [12870, 1, 139, 5.46], [11490, 1, 91, 3.23], [1886, 2, 158, 2.45], [9784, 1, 72, 3.72], [410, 1, 53, 2.59], [11159, 1, 497, 5.26], [22125, 2, 21, 1.76], [2703, 3, 308, 5.95], [21781, 2, 52, 2.32], [11161, 1, 501, 4.46], [9760, 29, 60, 3.35], [956, 2, 107, 2.8], [7708, 2, 178, 4.4], [12373, 1, 535, 4.76], [9065, 2, 153, 2.35], [5976, 1, 157, 5.59], [94, 4, 123, 2.94], [11689, 2, 102, 1.96], [105, 3, 244, 3.38], [8599, 1, 145, 2.76], [1274, 1, 81, 5.46], [2805, 137, 182, 4.09], [9372, 1, 229, 5.13], [9209, 29, 33, 2.82], [11953, 1, 202, 2.68], [5584, 3, 230, 6.0], [11811, 1, 453, 3.71], [4253, 1, 173, 3.19], [11160, 1, 501, 4.34], [8600, 1, 145, 3.74], [3495, 3, 969, 3.28], [247, 1, 86, 4.62], [2991, 3, 160, 6.0], [21269, 3, 296, 5.53], [12764, 2, 749, 3.24], [20927, 1, 40, 2.78], [8285, 2, 485, 2.64], [11887, 2, 193, 2.78], [1691, 1, 88, 4.34], [20555, 2, 58, 2.68], [9491, 21, 2005, 5.02], [5076, 1, 131, 3.94], [11677, 1, 450, 4.02], [4372, 1, 69, 2.74], [3934, 5, 588, 2.89], [12304, 1, 102, 6.0], [12979, 25, 657, 3.69], [13198, 29, 62, 4.22], [3230, 1, 199, 2.61]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 10, 2.0], [141, 2, 7, 0.92], [361, 2, 9, 1.17], [6935, 2, 23, 5.0], [12721, 2, 14, 3.11], [206, 2, 7, 0.77], [2049, 3, 17, 0.72], [8676, 2, 7, 1.1], [8675, 2, 9, 1.45], [1504, 2, 11, 0.95], [417, 2, 7, 0.9], [3, 2, 7, 1.13], [6936, 2, 9, 3.29], [305, 2, 7, 0.88], [22247, 2, 7, 1.83], [523, 2, 7, 1.27], [8650, 2, 7, 2.44], [8648, 2, 7, 2.02], [2328, 2, 7, 1.77], [2776, 2, 7, 1.38], [11739, 2, 7, 1.31], [2327, 2, 7, 1.48], [11837, 2, 7, 0.87], [12352, 1, 7, 3.98], [411, 2, 7, 0.73], [589, 2, 9, 0.67], [143, 2, 7, 1.35], [146, 2, 7, 2.16], [11835, 2, 7, 0.94], [6497, 1, 9, 0.85], [583, 2, 7, 2.23], [6097, 80, 7, 4.06], [326, 2, 7, 0.85], [10574, 3, 9, 3.47], [145, 2, 7, 2.81], [144, 2, 7, 2.81], [10149, 3, 26, 1.2], [11836, 2, 7, 1.04], [6097, 29, 7, 1.27], [75, 2, 7, 2.38], [12344, 1, 7, 2.59], [1413, 15, 7, 0.89], [6496, 1, 7, 2.07], [1243, 2, 7, 1.41], [6098, 80, 7, 4.99], [8915, 2, 7, 1.25], [1886, 2, 7, 1.42], [247, 1, 7, 3.97], [6098, 29, 7, 2.21], [944, 15, 9, 0.77], [1490, 1, 7, 0.9], [2859, 15, 7, 1.37], [3934, 5, 10, 0.86], [2049, 1, 9, 0.71], [201, 3, 7, 0.85], [6158, 2, 9, 3.5], [3478, 2, 7, 2.46], [12350, 1, 7, 3.92], [11489, 1, 7, 2.48], [13928, 1, 7, 2.9], [7084, 3, 7, 4.74], [1703, 2, 7, 1.53], [8599, 1, 7, 1.36], [9342, 2, 8, 0.85], [4253, 1, 7, 1.41], [3982, 3, 20, 0.67], [308, 1, 11, 1.91], [186, 3, 12, 0.97], [11887, 2, 8, 1.0], [11885, 2, 7, 0.98], [94, 4, 7, 0.92], [2438, 2, 8, 3.32], [11811, 1, 7, 1.93], [11490, 1, 7, 0.92], [1050, 2, 7, 0.69], [10398, 2, 7, 1.32], [5812, 3, 7, 3.84], [229, 1, 7, 3.07], [2821, 3, 13, 0.91], [4232, 80, 7, 1.33], [5939, 3, 7, 1.14], [11671, 1, 7, 0.81], [5813, 3, 8, 3.52], [3495, 3, 21, 1.51], [5811, 3, 8, 4.0], [8898, 3, 7, 5.0], [12764, 2, 8, 1.47], [3980, 4, 7, 2.49], [7036, 1, 7, 0.87], [2108, 3, 8, 1.43], [1049, 2, 7, 0.69], [105, 3, 7, 1.81], [13928, 2, 7, 2.9], [9690, 1, 7, 1.91], [5584, 3, 7, 5.0], [8274, 3, 7, 3.88], [22573, 2, 7, 1.91], [3981, 3, 13, 0.91], [1523, 1, 7, 1.39], [11886, 2, 7, 1.44], [10407, 10, 10, 3.25], [192, 3, 12, 4.76], [1277, 1, 7, 0.9], [8897, 3, 7, 5.0], [10124, 1, 7, 4.18], [2991, 3, 7, 4.13], [10406, 10, 12, 3.4], [20927, 1, 7, 1.28], [10147, 1, 7, 0.71], [11677, 1, 7, 2.24], [3334, 5, 7, 2.01], [2438, 1, 7, 3.21], [8635, 3, 7, 3.88], [11678, 1, 7, 3.18], [1701, 2, 7, 1.06], [23275, 2, 7, 1.91], [7004, 1, 7, 1.42], [4001, 3, 10, 0.97], [23031, 3, 7, 2.71], [9373, 5, 7, 5.0], [1274, 1, 7, 3.79], [10516, 3, 8, 3.0], [5976, 1, 7, 3.81], [10181, 26, 8, 0.93], [3984, 3, 8, 0.91], [9065, 2, 7, 0.92], [14041, 3, 7, 0.88], [8285, 2, 8, 0.85], [973, 3, 8, 1.13], [7005, 1, 7, 1.42], [19924, 2, 7, 1.83], [9069, 1, 7, 2.27], [10409, 10, 11, 3.34], [11812, 1, 7, 0.89], [1648, 1, 7, 2.23], [8188, 10, 10, 3.3], [12241, 3, 7, 0.73], [942, 3, 7, 2.26], [11811, 1, 453, 3.71], [11490, 1, 93, 3.16], [10398, 2, 148, 3.1], [5812, 3, 591, 5.62], [229, 1, 81, 4.85], [2821, 3, 672, 2.32], [4232, 80, 159, 3.11], [5939, 3, 268, 2.92], [11671, 1, 314, 2.59], [5813, 3, 591, 5.3], [3495, 3, 969, 3.28], [5811, 3, 394, 5.6], [8898, 3, 288, 6.0], [12764, 2, 749, 3.24], [3980, 4, 485, 4.28], [7036, 1, 128, 2.65], [2108, 3, 180, 3.21], [105, 3, 175, 3.52], [13928, 2, 23, 4.68], [9690, 1, 63, 3.62], [5584, 3, 230, 6.0], [22573, 2, 71, 3.69], [3981, 3, 1690, 2.69], [1523, 1, 47, 3.17], [11886, 2, 193, 3.22], [10407, 10, 1171, 5.03], [192, 3, 939, 6.0], [1277, 1, 197, 2.68], [8897, 3, 288, 6.0], [10124, 1, 101, 5.96], [2991, 3, 162, 5.9], [10406, 10, 1765, 5.19], [20927, 1, 40, 2.71], [10147, 1, 68, 2.49], [11677, 1, 450, 4.02], [3334, 5, 183, 3.78], [2438, 1, 53, 4.99], [11678, 1, 448, 4.95], [1701, 2, 170, 2.84], [23275, 2, 71, 3.69], [7004, 1, 27, 2.49], [4001, 3, 821, 2.75], [23031, 3, 414, 4.49], [9373, 5, 86, 6.0], [1274, 1, 81, 5.57], [10516, 3, 591, 4.78], [5976, 1, 157, 5.59], [10181, 26, 139, 2.71], [3984, 3, 1690, 2.69], [9065, 2, 153, 2.35], [14041, 3, 603, 2.65], [8285, 2, 485, 2.64], [973, 3, 1195, 2.91], [7005, 1, 27, 2.49], [19924, 2, 64, 3.61], [9069, 1, 122, 4.05], [10409, 10, 1765, 5.13], [11812, 1, 120, 2.31], [1648, 1, 47, 4.01], [8188, 10, 744, 5.08], [942, 3, 296, 4.04]]</t>
-  </si>
-  <si>
-    <t>[[305, 2, 7, 0.88], [6935, 2, 23, 4.18], [2328, 2, 9, 1.85], [130, 1, 9, 1.36], [141, 2, 9, 0.95], [8650, 2, 9, 2.32], [8672, 2, 12, 1.94], [2327, 2, 9, 1.82], [362, 2, 7, 2.49], [6936, 2, 9, 3.12], [143, 2, 7, 0.93], [145, 2, 7, 0.96], [248, 1, 7, 0.69], [205, 2, 7, 1.24], [5493, 2, 7, 2.06], [417, 2, 7, 1.04], [146, 2, 7, 1.1], [75, 2, 7, 1.79], [11737, 2, 7, 1.56], [1124, 2, 12, 1.24], [523, 2, 7, 1.72], [2049, 3, 17, 0.77], [12721, 2, 11, 1.45], [1005, 2, 7, 2.48], [8853, 2, 7, 2.88], [206, 2, 7, 0.74], [326, 2, 9, 1.68], [8673, 2, 9, 2.2], [8915, 2, 9, 2.88], [144, 2, 7, 1.34], [11835, 2, 7, 0.69], [11739, 2, 9, 2.98], [88, 10, 17, 2.02], [434, 2, 7, 1.29], [142, 2, 9, 0.87], [151, 1, 9, 2.5], [435, 2, 7, 1.48], [8676, 2, 7, 1.29], [11234, 2, 9, 1.56], [6158, 2, 10, 1.5], [11738, 2, 7, 1.38], [11836, 2, 7, 1.36], [1413, 15, 7, 0.99], [7705, 2, 7, 3.18], [10574, 3, 10, 3.0], [944, 15, 7, 0.77], [7706, 2, 7, 3.18], [3, 2, 7, 2.44], [2054, 3, 7, 2.44], [2859, 15, 7, 2.64], [12720, 2, 7, 1.89], [74, 1, 7, 3.84], [3478, 2, 7, 3.43], [2055, 3, 7, 0.89], [10149, 3, 21, 1.49], [3429, 15, 7, 0.87], [6497, 1, 7, 0.85], [7004, 1, 7, 2.04], [60, 3, 8, 2.96], [411, 2, 7, 0.74], [11089, 1, 7, 0.79], [13928, 1, 7, 2.9], [2057, 3, 7, 1.25], [13028, 3, 7, 1.96], [7036, 1, 7, 1.74], [18964, 1, 7, 0.66], [6097, 80, 7, 5.0], [13260, 29, 7, 2.25], [8274, 3, 7, 1.56], [3893, 1, 7, 4.33], [13034, 3, 9, 2.28], [14037, 3, 7, 1.85], [94, 4, 7, 4.81], [6952, 1, 7, 3.06], [3891, 1, 7, 2.43], [1050, 2, 7, 0.66], [7707, 2, 7, 1.44], [1243, 2, 7, 1.83], [21793, 1, 8, 4.0], [1490, 1, 7, 3.85], [3889, 1, 7, 4.33], [11490, 1, 7, 1.68], [22317, 3, 8, 1.35], [7708, 2, 7, 2.62], [345, 3, 7, 2.43], [6098, 80, 7, 4.56], [7703, 2, 7, 2.62], [229, 1, 7, 3.98], [3495, 3, 21, 1.51], [6630, 3, 7, 4.62], [2991, 3, 7, 4.18], [13023, 3, 10, 1.04], [336, 15, 7, 0.98], [2805, 137, 10, 1.06], [11581, 29, 7, 1.89], [6098, 29, 7, 2.21], [6627, 3, 7, 0.85], [23275, 2, 7, 1.91], [13033, 3, 7, 2.22], [2331, 1, 7, 1.23], [13263, 29, 7, 0.83], [1049, 2, 7, 0.69], [247, 1, 7, 3.12], [1274, 1, 7, 2.89], [8635, 3, 7, 1.17], [6628, 3, 7, 0.9], [6097, 29, 7, 3.08], [114, 3, 7, 2.37], [5940, 3, 7, 0.87], [12229, 2, 7, 0.87], [20555, 2, 7, 0.75], [942, 3, 7, 2.26], [6496, 1, 7, 2.07], [11914, 1, 7, 0.79], [10406, 10, 12, 3.4], [8898, 3, 7, 2.51], [9372, 1, 7, 3.35], [192, 3, 12, 4.76], [10411, 10, 10, 3.4], [215, 4, 7, 4.5], [21269, 3, 7, 2.09], [3934, 5, 9, 1.11], [9760, 29, 7, 2.81], [186, 3, 12, 2.32], [11770, 1, 7, 2.06], [10407, 10, 10, 3.25], [5209, 3, 8, 0.96], [12373, 1, 11, 2.99], [10527, 3, 13, 2.94], [10408, 10, 10, 3.27], [5812, 3, 7, 2.49], [6360, 10, 15, 1.51], [21781, 2, 7, 0.9], [4940, 1, 7, 0.71], [7005, 1, 7, 1.56], [9082, 3, 24, 2.83], [12870, 1, 7, 3.35], [1886, 2, 7, 0.85], [19687, 1, 7, 2.33], [3891, 1, 124, 4.21], [7707, 2, 178, 3.22], [1243, 2, 85, 3.61], [21793, 1, 205, 5.78], [1490, 1, 49, 5.63], [3889, 1, 41, 6.0], [11490, 1, 91, 3.39], [22317, 3, 215, 3.13], [7708, 2, 178, 4.4], [345, 3, 251, 4.21], [6098, 80, 25, 6.0], [7703, 2, 178, 4.4], [229, 1, 82, 5.76], [3495, 3, 969, 3.28], [6630, 3, 80, 6.0], [2991, 3, 161, 5.96], [13023, 3, 603, 2.82], [2805, 137, 184, 2.84], [11581, 29, 60, 3.67], [6098, 29, 38, 3.99], [6627, 3, 79, 2.63], [23275, 2, 71, 3.69], [13033, 3, 597, 4.0], [2331, 1, 119, 3.01], [13263, 29, 73, 2.61], [247, 1, 87, 4.9], [1274, 1, 81, 4.67], [6628, 3, 50, 2.32], [6097, 29, 35, 4.86], [114, 3, 162, 3.98], [5940, 3, 90, 1.94], [12229, 2, 153, 2.65], [20555, 2, 58, 2.53], [942, 3, 296, 4.04], [6496, 1, 40, 3.85], [11914, 1, 87, 2.57], [10406, 10, 1765, 5.19], [8898, 3, 282, 4.29], [9372, 1, 229, 5.13], [192, 3, 939, 6.0], [10411, 10, 768, 5.19], [215, 4, 37, 6.0], [21269, 3, 294, 3.87], [3934, 5, 588, 2.89], [9760, 29, 24, 3.88], [186, 3, 440, 3.93], [11770, 1, 214, 3.84], [10407, 10, 1171, 5.03], [5209, 3, 377, 2.56], [12373, 1, 535, 4.76], [10527, 3, 870, 4.74], [10408, 10, 768, 5.06], [5812, 3, 588, 4.26], [6360, 10, 744, 3.3], [21781, 2, 52, 2.32], [4940, 1, 122, 2.49], [7005, 1, 27, 2.63], [9082, 3, 2464, 4.58], [12870, 1, 137, 5.13], [1886, 2, 158, 2.63], [19687, 1, 30, 4.11]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 11, 3.36], [141, 2, 7, 1.09], [589, 2, 10, 0.75], [2778, 2, 9, 1.33], [6936, 2, 13, 3.9], [2327, 2, 7, 1.37], [362, 2, 9, 1.39], [8648, 2, 7, 4.05], [11681, 2, 25, 4.17], [8650, 2, 9, 3.91], [326, 2, 9, 1.32], [205, 2, 9, 1.14], [1446, 2, 7, 0.92], [2328, 2, 9, 1.6], [305, 2, 9, 2.48], [2049, 3, 9, 0.89], [130, 1, 7, 2.31], [2775, 2, 9, 1.33], [8853, 2, 11, 4.03], [361, 2, 7, 1.11], [593, 2, 9, 0.96], [143, 2, 7, 1.27], [1429, 2, 7, 1.08], [206, 2, 9, 0.87], [523, 2, 7, 1.49], [7004, 1, 7, 1.71], [12350, 1, 7, 0.97], [7036, 1, 7, 2.73], [1124, 2, 9, 1.09], [151, 1, 7, 0.71], [990, 2, 7, 1.94], [5165, 1, 9, 1.87], [417, 2, 7, 1.06], [248, 1, 9, 0.76], [144, 2, 7, 2.69], [2050, 3, 7, 2.33], [201, 3, 7, 3.56], [6952, 1, 7, 3.04], [6097, 80, 7, 4.58], [345, 3, 9, 1.68], [11770, 1, 7, 0.92], [2055, 3, 7, 2.83], [3891, 1, 7, 1.46], [7084, 3, 9, 5.0], [2057, 3, 7, 2.83], [9372, 1, 7, 3.47], [5165, 2, 15, 2.8], [7005, 1, 7, 1.08], [3893, 1, 7, 1.34], [998, 2, 9, 1.81], [12870, 1, 7, 1.58], [10574, 3, 8, 1.91], [3334, 5, 7, 2.87], [6097, 29, 9, 5.0], [7885, 4, 7, 0.94], [6098, 80, 7, 2.68], [20927, 1, 7, 1.66], [346, 3, 7, 0.8], [11089, 1, 7, 1.67], [12344, 1, 7, 1.02], [10149, 3, 24, 1.49], [6158, 2, 7, 2.58], [3889, 1, 7, 1.42], [1492, 1, 9, 0.68], [432, 3, 7, 2.08], [11953, 1, 7, 0.79], [1519, 3, 16, 0.68], [4032, 29, 7, 1.0], [411, 2, 7, 1.04], [2423, 80, 7, 4.75], [972, 3, 9, 2.0], [5151, 2, 7, 2.02], [13034, 3, 9, 3.01], [229, 1, 7, 3.98], [3576, 25, 7, 2.73], [2331, 1, 7, 2.49], [346, 1, 9, 0.73], [13244, 1, 7, 0.9], [11426, 25, 7, 1.14], [11737, 2, 7, 0.94], [11583, 29, 9, 0.76], [3, 2, 7, 1.58], [5076, 1, 7, 1.65], [2160, 68, 7, 1.96], [11490, 1, 7, 1.37], [2805, 137, 7, 1.69], [12764, 2, 10, 0.99], [6494, 1, 7, 2.92], [8677, 3, 8, 2.13], [13893, 2, 7, 3.45], [1701, 2, 7, 3.04], [3575, 25, 7, 1.49], [11814, 1, 7, 0.92], [3577, 25, 7, 0.71], [1413, 15, 7, 0.83], [3478, 2, 7, 1.19], [11813, 1, 7, 3.17], [23238, 29, 7, 0.71], [75, 2, 7, 1.56], [2438, 2, 8, 3.47], [13023, 3, 8, 2.24], [4253, 1, 7, 2.98], [4033, 29, 7, 0.94], [9289, 29, 7, 2.91], [8283, 2, 8, 1.31], [11404, 2, 7, 0.83], [5812, 3, 7, 3.84], [23238, 25, 7, 0.71], [9967, 2, 7, 3.67], [9069, 1, 7, 1.81], [9971, 2, 7, 3.67], [2878, 1, 7, 0.85], [5584, 3, 7, 2.66], [1163, 3, 7, 2.79], [957, 2, 7, 1.75], [9491, 21, 13, 2.57], [114, 3, 7, 2.19], [21697, 3, 7, 0.87], [4586, 10, 16, 1.4], [10407, 10, 12, 3.17], [13249, 29, 7, 1.99], [823, 1, 7, 1.1], [289, 3, 7, 1.96], [9965, 2, 7, 4.13], [10609, 1, 7, 2.98], [336, 15, 7, 0.98], [9964, 2, 7, 1.83], [4076, 3, 7, 2.73], [7324, 1, 7, 1.69], [12647, 1, 7, 1.49], [1277, 1, 9, 1.06], [2528, 29, 7, 1.87], [3495, 3, 16, 1.44], [1523, 1, 7, 1.2], [4372, 10, 12, 0.97], [11425, 25, 7, 1.1], [13034, 3, 430, 5.43], [229, 1, 70, 5.4], [3576, 25, 87, 4.15], [2331, 1, 101, 3.91], [346, 1, 117, 2.71], [13244, 1, 43, 2.32], [11426, 25, 87, 3.0], [11737, 2, 49, 2.36], [11583, 29, 41, 2.76], [3, 2, 105, 3.0], [5076, 1, 112, 3.07], [2160, 68, 113, 3.38], [11490, 1, 93, 2.79], [2805, 137, 155, 3.11], [12764, 2, 539, 3.09], [6494, 1, 43, 4.34], [8677, 3, 254, 3.55], [13893, 2, 232, 4.86], [1701, 2, 140, 4.46], [3575, 25, 87, 2.91], [11814, 1, 193, 2.34], [3577, 25, 76, 2.13], [1413, 15, 86, 2.25], [3478, 2, 65, 2.61], [11813, 1, 267, 4.59], [23238, 29, 26, 2.04], [75, 2, 125, 2.98], [2438, 2, 538, 4.89], [13023, 3, 511, 3.66], [4253, 1, 145, 4.4], [4033, 29, 89, 2.36], [9289, 29, 54, 4.34], [8283, 2, 408, 2.73], [11404, 2, 90, 2.25], [5812, 3, 505, 5.26], [23238, 25, 51, 2.04], [9967, 2, 232, 5.09], [9069, 1, 85, 3.15], [9971, 2, 232, 5.09], [2878, 1, 70, 2.27], [5584, 3, 199, 4.08], [957, 2, 92, 3.17], [9491, 21, 1805, 4.0], [114, 3, 208, 3.61], [21697, 3, 156, 2.29], [4586, 10, 1264, 2.8], [10407, 10, 1001, 4.59], [13249, 29, 55, 3.41], [823, 1, 35, 2.52], [289, 3, 496, 3.37], [9965, 2, 232, 5.55], [10609, 1, 245, 4.4], [9964, 2, 232, 3.26], [4076, 3, 172, 4.15], [7324, 1, 52, 3.11], [12647, 1, 189, 2.91], [1277, 1, 170, 2.48], [2528, 29, 82, 3.29], [3495, 3, 829, 2.85], [1523, 1, 41, 2.62], [4372, 10, 945, 2.39], [11425, 25, 103, 2.52]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 12, 2.91], [305, 2, 7, 1.49], [2049, 3, 13, 0.85], [326, 2, 8, 1.03], [141, 2, 7, 0.75], [205, 2, 7, 1.21], [151, 1, 7, 0.89], [589, 2, 10, 0.81], [1776, 1, 7, 2.85], [146, 2, 7, 1.12], [206, 2, 7, 0.69], [8648, 2, 7, 2.52], [143, 2, 7, 1.12], [2328, 2, 7, 1.01], [990, 2, 9, 0.92], [6936, 2, 10, 2.57], [1777, 1, 7, 2.22], [8650, 2, 7, 3.66], [5151, 2, 7, 2.02], [2778, 2, 7, 1.06], [88, 10, 17, 1.75], [2050, 3, 7, 1.46], [10, 2, 11, 2.55], [10149, 3, 25, 3.26], [76, 2, 9, 2.75], [8649, 2, 7, 2.86], [8677, 3, 8, 3.08], [2054, 3, 9, 2.34], [412, 1, 7, 1.75], [13028, 3, 7, 0.96], [413, 1, 7, 1.64], [7004, 1, 7, 0.77], [411, 2, 7, 0.92], [10825, 21, 14, 0.72], [410, 1, 7, 1.17], [7084, 3, 7, 2.66], [307, 2, 7, 1.12], [3478, 2, 7, 2.36], [6158, 2, 10, 1.16], [3495, 3, 26, 2.49], [5081, 2, 7, 1.0], [167, 3, 9, 3.34], [7005, 1, 7, 0.77], [1492, 1, 7, 0.7], [7036, 1, 7, 2.48], [8676, 2, 7, 2.54], [9827, 3, 7, 1.38], [45, 2, 7, 3.67], [168, 3, 9, 1.09], [5812, 3, 8, 4.4], [57, 1, 7, 1.02], [94, 4, 7, 3.04], [1504, 2, 7, 1.33], [12870, 1, 7, 4.77], [335, 3, 18, 3.78], [418, 2, 7, 0.71], [2336, 3, 8, 1.74], [6097, 29, 7, 4.54], [6097, 80, 7, 4.54], [8853, 2, 14, 4.07], [346, 1, 7, 1.08], [490, 1, 7, 0.98], [1490, 1, 7, 0.87], [998, 2, 7, 2.5], [20927, 1, 7, 1.5], [95, 3, 21, 0.92], [79, 1, 7, 0.73], [9069, 1, 7, 2.1], [22316, 3, 7, 0.94], [6098, 29, 7, 4.85], [14017, 3, 7, 1.29], [6098, 80, 7, 4.85], [1070, 7, 13, 0.73], [346, 3, 8, 0.91], [8898, 3, 7, 3.98], [997, 2, 7, 2.54], [13034, 3, 8, 2.98], [9760, 29, 7, 1.15], [20498, 1, 7, 2.44], [192, 3, 18, 4.76], [336, 15, 7, 0.98], [5086, 1, 9, 1.64], [8945, 3, 8, 1.41], [7887, 4, 7, 0.71], [12350, 1, 7, 4.0], [5811, 3, 6, 2.16], [7567, 3, 7, 3.89], [22317, 3, 8, 1.35], [11085, 2, 7, 1.33], [12345, 1, 7, 1.96], [12924, 1, 9, 0.86], [5813, 3, 7, 1.98], [12349, 1, 7, 1.94], [229, 1, 7, 4.32], [972, 3, 8, 0.61], [995, 2, 7, 4.74], [9082, 3, 24, 1.17], [1622, 1, 10, 0.74], [8557, 3, 7, 1.53], [12352, 1, 7, 1.94], [20498, 3, 8, 2.4], [996, 2, 7, 4.42], [9691, 1, 7, 2.81], [12346, 1, 7, 1.96], [8104, 1, 7, 0.75], [3049, 3, 7, 4.11], [1080, 3, 7, 1.59], [14018, 3, 7, 0.96], [4076, 3, 7, 5.0], [3900, 3, 7, 3.23], [13023, 3, 8, 1.94], [1703, 2, 7, 2.72], [110, 4, 7, 1.81], [20486, 3, 8, 3.76], [5584, 3, 7, 3.61], [9613, 1, 7, 0.87], [2424, 80, 7, 4.51], [35, 1, 7, 2.02], [972, 1, 7, 0.92], [215, 4, 7, 5.0], [9372, 1, 7, 1.55], [1414, 15, 7, 0.81], [9081, 3, 12, 3.31], [20486, 1, 9, 2.87], [33, 1, 7, 1.42], [114, 3, 7, 0.92], [6497, 1, 7, 1.93], [39, 1, 7, 1.06], [11510, 3, 8, 1.98], [823, 1, 7, 0.69], [3047, 3, 7, 1.06], [1339, 3, 16, 0.73], [2854, 21, 13, 0.84], [18, 1, 7, 0.92], [13893, 2, 7, 3.45], [10529, 29, 7, 2.85], [9069, 1, 96, 3.66], [22316, 3, 292, 2.09], [6098, 29, 17, 5.62], [14017, 3, 154, 2.89], [6098, 80, 35, 5.62], [1070, 7, 467, 2.4], [346, 3, 569, 2.06], [8898, 3, 221, 5.63], [997, 2, 217, 3.69], [13034, 3, 459, 4.14], [9760, 29, 66, 2.31], [20498, 1, 77, 3.6], [192, 3, 1288, 5.9], [5086, 1, 144, 3.79], [8945, 3, 544, 2.57], [12350, 1, 563, 5.17], [5811, 3, 459, 3.82], [22317, 3, 248, 2.52], [11085, 2, 431, 2.5], [12345, 1, 563, 3.12], [12924, 1, 42, 2.69], [5813, 3, 459, 3.64], [12349, 1, 563, 3.1], [229, 1, 57, 5.47], [972, 3, 552, 1.78], [995, 2, 217, 5.9], [9082, 3, 1955, 2.92], [8557, 3, 159, 3.18], [12352, 1, 563, 3.1], [20498, 3, 459, 3.56], [996, 2, 217, 5.57], [9691, 1, 59, 4.46], [12346, 1, 563, 3.12], [8104, 1, 144, 1.78], [3049, 3, 108, 5.27], [1080, 3, 122, 2.74], [14018, 3, 154, 2.57], [4076, 3, 155, 6.0], [13023, 3, 459, 4.1], [1703, 2, 149, 3.87], [110, 4, 190, 2.97], [20486, 3, 465, 4.92], [5584, 3, 197, 4.77], [9613, 1, 58, 2.03], [2424, 80, 152, 5.66], [35, 1, 103, 3.18], [972, 1, 92, 2.08], [215, 4, 34, 6.0], [9372, 1, 210, 2.71], [1414, 15, 92, 1.97], [9081, 3, 423, 4.47], [20486, 1, 78, 4.52], [33, 1, 103, 2.58], [114, 3, 225, 2.07], [6497, 1, 34, 3.09], [39, 1, 103, 2.22], [11510, 3, 536, 3.15], [823, 1, 38, 1.85], [3047, 3, 248, 2.22], [2854, 21, 983, 2.0], [18, 1, 22, 1.69], [13893, 2, 249, 4.61], [10529, 29, 37, 4.0]]</t>
+    <t>14/12/2025 12:45</t>
+  </si>
+  <si>
+    <t>20/12/2025 23:59</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 8, 0.73], [305, 2, 4, 0.25], [326, 2, 4, 0.54], [589, 2, 5, 0.2], [143, 2, 4, 0.58], [2049, 3, 9, 0.47], [130, 1, 4, 0.6], [6935, 2, 8, 1.27], [75, 2, 5, 0.87], [144, 2, 4, 0.99], [12721, 2, 6, 0.72], [145, 2, 4, 0.52], [8915, 2, 8, 0.2], [7885, 4, 4, 0.4], [146, 2, 4, 0.2], [1776, 1, 4, 0.61], [2778, 2, 5, 0.2], [206, 2, 4, 0.2], [1777, 1, 4, 0.74], [151, 1, 4, 0.2], [8648, 2, 4, 1.02], [6936, 2, 5, 1.17], [2328, 2, 4, 0.2], [5151, 2, 4, 1.52], [7886, 4, 5, 0.45], [248, 1, 4, 0.2], [2050, 3, 6, 0.41], [141, 2, 4, 0.2], [2991, 3, 4, 2.05], [74, 1, 4, 1.53], [2054, 3, 5, 0.54], [83, 2, 4, 0.58], [1446, 2, 4, 0.2], [1492, 1, 5, 0.72], [7004, 1, 4, 0.2], [2055, 3, 5, 0.42], [76, 2, 4, 0.84], [8649, 2, 4, 1.4], [345, 3, 4, 0.2], [11404, 2, 4, 0.35], [7084, 3, 4, 2.53], [3889, 1, 4, 0.2], [10825, 21, 10, 0.78], [61, 3, 4, 0.53], [10149, 3, 15, 0.99], [7036, 1, 4, 0.93], [21793, 1, 4, 1.93], [12870, 1, 4, 2.33], [33, 1, 4, 0.83], [94, 4, 4, 0.2], [5081, 2, 5, 0.69], [3478, 2, 4, 0.53], [10, 2, 4, 0.68], [11681, 2, 5, 1.41], [167, 3, 5, 1.65], [411, 2, 4, 0.2], [9827, 3, 4, 0.2], [308, 1, 4, 2.58], [1654, 2, 4, 0.2], [3891, 1, 4, 0.2], [1504, 2, 4, 0.55], [8677, 3, 6, 0.65], [201, 3, 5, 0.2], [168, 3, 4, 1.23], [3893, 1, 4, 0.2], [84, 2, 4, 0.4], [79, 1, 4, 0.2], [35, 1, 4, 0.83], [2336, 3, 5, 0.99], [13280, 1, 4, 0.81], [23, 1, 4, 0.67], [1490, 1, 4, 0.2], [9760, 29, 4, 0.24], [1243, 2, 4, 0.53], [6158, 2, 6, 0.51], [412, 1, 4, 1.14], [45, 2, 4, 0.64], [361, 2, 4, 0.66], [346, 1, 4, 0.2], [20927, 1, 4, 0.49], [1767, 25, 4, 0.59], [25, 1, 4, 0.76], [12225, 1, 4, 0.43], [9069, 1, 4, 0.37], [413, 1, 5, 1.07], [21269, 3, 4, 1.6], [3495, 3, 15, 1.31], [346, 3, 4, 0.5], [490, 1, 4, 0.53], [997, 2, 4, 0.77], [34, 1, 4, 0.88], [1766, 25, 4, 0.2], [8898, 3, 5, 0.75], [5946, 1, 4, 1.03], [9691, 1, 4, 1.77], [1070, 7, 9, 0.46], [1519, 3, 11, 0.34], [9372, 1, 5, 1.74], [14017, 3, 5, 1.04], [11954, 1, 4, 0.2], [20498, 1, 4, 0.2], [38, 1, 4, 0.88], [974, 3, 5, 0.88], [14037, 3, 4, 0.2], [22317, 3, 5, 0.2], [5584, 3, 4, 1.19], [972, 3, 5, 1.15], [1091, 1, 5, 0.2], [7567, 3, 4, 1.21], [20498, 3, 6, 0.58], [110, 4, 4, 0.2], [9828, 3, 4, 0.2], [8945, 3, 5, 0.51], [5813, 3, 4, 1.51], [2991, 1, 4, 0.52], [82, 2, 4, 0.52], [3048, 3, 4, 1.24], [39, 1, 4, 0.59], [1080, 3, 5, 0.3], [1414, 15, 4, 0.2], [24, 1, 4, 1.04], [13034, 3, 5, 1.09], [336, 15, 4, 0.2], [1767, 2, 4, 0.2], [202, 2, 4, 0.9], [13260, 29, 4, 0.73], [10780, 10, 4, 0.98], [5513, 2, 4, 0.57], [9082, 3, 15, 0.83], [11811, 1, 4, 0.94], [4203, 1, 4, 0.2], [2878, 1, 4, 0.61], [14018, 3, 4, 0.85], [8635, 3, 5, 0.2], [3900, 3, 4, 0.47], [8104, 1, 4, 0.44], [8672, 2, 247, 4.98], [305, 2, 117, 3.3], [326, 2, 78, 3.44], [589, 2, 52, 1.43], [143, 2, 127, 3.36], [130, 1, 20, 2.57], [6935, 2, 243, 5.31], [75, 2, 126, 3.91], [144, 2, 127, 3.21], [12721, 2, 245, 4.0], [145, 2, 129, 3.26], [8915, 2, 65, 1.26], [146, 2, 152, 2.27], [1776, 1, 93, 3.44], [2778, 2, 135, 3.37], [206, 2, 110, 1.95], [1777, 1, 80, 3.66], [151, 1, 67, 1.98], [8648, 2, 229, 4.53], [6936, 2, 243, 4.78], [2328, 2, 109, 3.35], [5151, 2, 17, 4.32], [7886, 4, 48, 1.63], [248, 1, 39, 2.99], [2050, 3, 412, 3.9], [141, 2, 113, 3.92], [2991, 3, 139, 6.0], [74, 1, 170, 5.84], [2054, 3, 347, 2.86], [83, 2, 18, 1.88], [1446, 2, 131, 3.74], [1492, 1, 19, 4.15], [7004, 1, 81, 1.98], [2055, 3, 412, 3.1], [76, 2, 80, 3.85], [8649, 2, 194, 6.0], [345, 3, 260, 3.35], [11404, 2, 106, 1.94], [3889, 1, 107, 3.11], [10825, 21, 546, 4.5], [61, 3, 211, 2.29], [10149, 3, 753, 4.0], [7036, 1, 109, 4.05], [21793, 1, 234, 5.21], [12870, 1, 119, 6.0], [33, 1, 85, 3.75], [94, 4, 106, 4.41], [5081, 2, 163, 3.57], [10, 2, 106, 2.58], [11681, 2, 276, 4.73], [167, 3, 194, 4.58], [411, 2, 93, 2.99], [9827, 3, 75, 3.19], [308, 1, 170, 6.0], [1654, 2, 68, 2.84], [3891, 1, 107, 4.43], [1504, 2, 208, 4.06], [8677, 3, 254, 3.57], [201, 3, 260, 3.35], [168, 3, 137, 4.17], [3893, 1, 107, 4.43], [84, 2, 68, 2.12], [79, 1, 24, 2.97], [35, 1, 38, 3.61]]</t>
+  </si>
+  <si>
+    <t>[[2327, 2, 4, 0.2], [305, 2, 4, 0.45], [6935, 2, 6, 1.69], [2778, 2, 4, 0.2], [589, 2, 5, 0.2], [8915, 2, 5, 0.2], [144, 2, 4, 0.54], [143, 2, 4, 0.44], [2328, 2, 4, 0.26], [6936, 2, 5, 1.66], [205, 2, 4, 0.37], [8648, 2, 4, 1.15], [2775, 2, 4, 0.2], [8650, 2, 5, 1.53], [145, 2, 4, 0.5], [146, 2, 5, 0.57], [326, 2, 4, 0.22], [7036, 1, 4, 1.2], [2049, 3, 8, 0.21], [88, 10, 11, 0.5], [2776, 2, 4, 0.2], [141, 2, 5, 0.39], [7004, 1, 4, 0.74], [1446, 2, 4, 0.39], [206, 2, 4, 0.2], [9760, 29, 4, 0.2], [362, 2, 4, 0.52], [2912, 1, 4, 1.58], [2055, 3, 4, 0.56], [142, 2, 4, 0.4], [3893, 1, 4, 0.2], [12870, 1, 5, 1.18], [5165, 1, 4, 2.3], [9372, 1, 4, 0.59], [7886, 4, 5, 0.44], [7084, 3, 4, 1.07], [3889, 1, 4, 0.2], [2054, 3, 5, 0.2], [2050, 3, 5, 0.56], [1622, 1, 4, 0.2], [10, 2, 5, 0.36], [21793, 1, 4, 0.41], [7573, 1, 9, 2.45], [3891, 1, 4, 0.2], [5208, 3, 5, 0.19], [75, 2, 5, 1.0], [10149, 3, 17, 1.22], [20927, 1, 4, 0.76], [997, 2, 4, 0.76], [3, 2, 5, 0.62], [11234, 2, 5, 0.25], [5165, 2, 5, 2.22], [12721, 2, 5, 1.46], [998, 2, 4, 0.31], [1886, 2, 5, 0.2], [94, 4, 4, 0.4], [346, 3, 5, 0.21], [35, 1, 4, 1.79], [22247, 2, 4, 1.31], [9491, 21, 15, 0.22], [996, 2, 4, 0.2], [955, 2, 4, 0.54], [83, 2, 4, 0.45], [229, 1, 4, 1.55], [33, 1, 4, 1.43], [7887, 4, 4, 0.97], [6158, 2, 4, 0.44], [2912, 2, 7, 0.74], [76, 2, 5, 1.1], [413, 1, 4, 1.88], [13928, 1, 4, 1.2], [2424, 80, 4, 0.86], [2805, 137, 4, 1.33], [5209, 3, 6, 0.46], [5076, 1, 4, 0.97], [346, 1, 4, 0.43], [8676, 2, 4, 1.22], [38, 1, 4, 1.63], [34, 1, 4, 1.07], [418, 2, 4, 0.54], [84, 2, 4, 1.4], [8104, 1, 4, 1.09], [12212, 29, 5, 0.2], [3495, 3, 10, 0.82], [11952, 1, 4, 0.43], [1414, 15, 4, 0.42], [39, 1, 4, 1.6], [11490, 1, 4, 0.96], [3048, 3, 4, 1.15], [11770, 1, 4, 0.6], [2424, 29, 4, 0.86], [411, 2, 4, 0.67], [10407, 10, 6, 1.67], [1703, 2, 4, 1.33], [9691, 1, 4, 1.22], [202, 2, 4, 0.47], [13928, 2, 4, 0.55], [11772, 1, 4, 1.23], [11953, 1, 4, 0.51], [5584, 3, 4, 2.8], [22316, 3, 4, 0.6], [23961, 3, 4, 2.38], [7567, 3, 4, 1.58], [13893, 2, 4, 1.17], [12764, 2, 5, 0.48], [13023, 3, 5, 0.31], [10410, 10, 10, 1.67], [1519, 3, 10, 0.34], [74, 1, 4, 3.27], [21269, 3, 5, 0.99], [1274, 1, 4, 0.41], [5164, 1, 4, 1.95], [410, 1, 4, 1.01], [2331, 1, 4, 0.64], [4253, 1, 4, 0.2], [1523, 1, 4, 0.6], [10408, 10, 6, 1.83], [1492, 1, 4, 0.2], [2438, 2, 6, 1.64], [12229, 2, 5, 0.2], [3430, 15, 4, 1.45], [6097, 80, 4, 1.26], [13034, 3, 5, 1.2], [3047, 3, 4, 1.64], [6805, 1, 4, 0.51], [8674, 2, 4, 1.21], [71, 15, 4, 0.35], [1243, 2, 5, 1.13], [21059, 1, 4, 1.6], [10780, 10, 4, 2.11], [11116, 1, 4, 0.56], [2436, 4, 5, 0.2], [6097, 29, 4, 0.79], [11812, 1, 4, 0.2], [1080, 3, 4, 1.41], [24257, 1, 4, 0.56], [3429, 15, 4, 0.37], [2327, 2, 125, 3.09], [305, 2, 104, 3.46], [6935, 2, 198, 6.0], [2778, 2, 112, 3.56], [589, 2, 141, 2.29], [8915, 2, 155, 2.94], [144, 2, 107, 3.63], [143, 2, 105, 3.45], [2328, 2, 107, 4.03], [6936, 2, 198, 5.9], [205, 2, 51, 2.81], [8648, 2, 159, 5.71], [2775, 2, 112, 3.56], [8650, 2, 159, 5.44], [145, 2, 107, 3.56], [146, 2, 107, 4.24], [326, 2, 81, 3.66], [7036, 1, 91, 5.66], [2049, 3, 324, 3.34], [88, 10, 397, 4.74], [2776, 2, 112, 3.77], [141, 2, 111, 3.36], [1446, 2, 35, 2.25], [206, 2, 85, 2.22], [9760, 29, 63, 3.37], [362, 2, 101, 3.59], [2912, 1, 43, 4.54], [2055, 3, 135, 2.57], [142, 2, 90, 3.29], [3893, 1, 89, 3.35], [12870, 1, 97, 5.83], [5165, 1, 43, 5.85], [9372, 1, 212, 4.51], [7886, 4, 33, 1.61], [7084, 3, 93, 4.19], [3889, 1, 89, 4.01], [2054, 3, 111, 2.89], [1622, 1, 56, 1.72], [10, 2, 88, 3.02], [21793, 1, 222, 2.45], [7573, 1, 261, 6.0], [3891, 1, 89, 3.4], [5208, 3, 326, 2.1], [75, 2, 102, 4.52], [10149, 3, 625, 4.75], [20927, 1, 18, 2.74], [997, 2, 169, 4.96], [3, 2, 86, 3.96], [11234, 2, 170, 2.72], [5165, 2, 344, 5.45], [12721, 2, 199, 4.94], [998, 2, 169, 4.14], [1886, 2, 111, 3.67], [94, 4, 85, 4.74], [346, 3, 447, 3.46], [22247, 2, 262, 3.94], [9491, 21, 1499, 3.56], [996, 2, 165, 5.77], [955, 2, 100, 2.46], [229, 1, 60, 4.4], [33, 1, 77, 4.35], [6158, 2, 241, 2.98], [2912, 2, 275, 5.31]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 5, 1.34], [11685, 2, 4, 1.87], [326, 2, 5, 0.7], [8648, 2, 4, 0.46], [589, 2, 5, 0.2], [2327, 2, 5, 0.2], [205, 2, 5, 0.2], [593, 2, 5, 0.52], [11681, 2, 5, 1.37], [143, 2, 4, 0.51], [305, 2, 4, 0.51], [8915, 2, 5, 0.42], [8650, 2, 4, 0.96], [141, 2, 4, 0.53], [6936, 2, 5, 1.85], [2778, 2, 5, 0.2], [146, 2, 4, 1.07], [88, 10, 12, 0.19], [7004, 1, 4, 1.01], [7036, 1, 4, 1.73], [145, 2, 4, 0.48], [1446, 2, 4, 0.2], [8853, 2, 5, 1.2], [362, 2, 4, 0.5], [2055, 3, 6, 1.73], [417, 2, 4, 0.55], [10993, 2, 4, 0.59], [11737, 2, 5, 0.2], [3893, 1, 4, 0.2], [75, 2, 4, 0.9], [2050, 3, 4, 1.69], [159, 3, 6, 0.19], [3840, 1, 4, 0.39], [523, 2, 4, 0.53], [12870, 1, 4, 1.2], [3889, 1, 4, 0.53], [2057, 3, 5, 1.78], [7084, 3, 5, 0.28], [13280, 1, 4, 0.59], [20927, 1, 4, 0.47], [3, 2, 4, 0.71], [7005, 1, 4, 0.74], [997, 2, 5, 0.78], [3982, 3, 14, 1.18], [9760, 29, 4, 0.2], [10, 2, 4, 0.67], [3891, 1, 4, 0.53], [98, 11, 11, 0.54], [998, 2, 4, 0.69], [11739, 2, 4, 0.73], [6158, 2, 6, 0.2], [7885, 4, 5, 0.2], [84, 2, 4, 0.9], [5165, 2, 5, 2.22], [346, 3, 4, 0.52], [9372, 1, 4, 1.35], [3980, 4, 4, 1.2], [5165, 1, 4, 2.3], [411, 2, 4, 1.11], [10388, 2, 4, 1.83], [2912, 1, 4, 1.58], [9491, 21, 12, 0.22], [214, 3, 9, 0.38], [346, 1, 4, 0.39], [3981, 3, 13, 1.15], [1492, 1, 4, 0.7], [22316, 3, 4, 0.51], [10386, 2, 4, 0.99], [33, 1, 4, 2.33], [995, 2, 4, 1.16], [13928, 1, 4, 0.55], [418, 2, 4, 0.51], [22247, 2, 4, 1.6], [308, 1, 4, 0.67], [13893, 2, 4, 1.13], [336, 15, 4, 1.0], [7886, 4, 4, 0.2], [7567, 3, 4, 1.21], [2912, 2, 5, 2.27], [35, 1, 4, 1.83], [10631, 2, 4, 1.98], [11490, 1, 4, 1.05], [229, 1, 4, 1.2], [159, 1, 4, 0.2], [11953, 1, 5, 0.2], [83, 2, 4, 0.49], [11770, 1, 5, 0.2], [13283, 1, 4, 0.59], [22317, 3, 6, 0.51], [10780, 10, 4, 4.0], [10407, 10, 7, 1.35], [9691, 1, 5, 0.89], [13286, 1, 4, 0.59], [10149, 3, 15, 1.48], [10410, 10, 6, 1.27], [12271, 2, 4, 2.01], [6497, 1, 4, 0.45], [345, 3, 4, 1.01], [1413, 15, 4, 0.2], [74, 1, 4, 1.1], [8943, 3, 4, 0.38], [3478, 2, 4, 0.84], [37, 1, 4, 1.16], [9971, 2, 4, 0.69], [23611, 3, 4, 0.2], [10387, 2, 4, 0.95], [39, 1, 4, 0.43], [11085, 2, 5, 1.27], [4076, 3, 4, 1.35], [3048, 3, 5, 0.92], [2331, 1, 4, 1.45], [159, 16, 4, 0.51], [34, 1, 4, 0.93], [13281, 1, 4, 0.59], [20498, 3, 5, 0.5], [82, 2, 4, 0.62], [4001, 3, 8, 1.13], [11510, 3, 5, 0.5], [45, 2, 4, 0.56], [9, 1, 4, 0.5], [12338, 29, 4, 0.38], [9965, 2, 4, 0.69], [9964, 2, 4, 0.69], [10936, 2, 4, 1.7], [215, 4, 4, 0.78], [24257, 1, 4, 1.5], [105, 3, 4, 0.51], [1523, 1, 4, 1.08], [12764, 2, 6, 0.35], [1895, 3, 4, 0.74], [12212, 29, 4, 0.5], [12858, 1, 5, 0.2], [1080, 3, 4, 0.46], [11489, 1, 4, 0.5], [2805, 137, 5, 0.47], [8635, 3, 4, 1.51], [6935, 2, 223, 5.26], [11685, 2, 222, 5.8], [326, 2, 87, 3.8], [8648, 2, 218, 4.07], [589, 2, 124, 3.05], [2327, 2, 111, 2.93], [205, 2, 44, 3.38], [593, 2, 186, 3.67], [11681, 2, 222, 5.79], [143, 2, 120, 3.88], [305, 2, 119, 3.38], [8915, 2, 139, 2.04], [8650, 2, 218, 3.21], [141, 2, 125, 4.03], [6936, 2, 223, 6.0], [2778, 2, 127, 3.51], [146, 2, 95, 4.01], [88, 10, 462, 3.29], [7004, 1, 57, 3.23], [7036, 1, 104, 4.72], [145, 2, 123, 4.27], [1446, 2, 124, 4.49], [8853, 2, 223, 4.82], [362, 2, 114, 3.36], [2055, 3, 374, 5.86], [417, 2, 125, 3.45], [10993, 2, 51, 2.73], [11737, 2, 14, 3.71], [3893, 1, 92, 3.33], [75, 2, 108, 3.67], [2050, 3, 374, 5.77], [159, 3, 579, 3.73], [3840, 1, 41, 1.53], [523, 2, 125, 3.5], [12870, 1, 102, 5.64], [3889, 1, 120, 2.38], [2057, 3, 374, 5.97], [7084, 3, 105, 3.88], [13280, 1, 303, 3.68], [20927, 1, 76, 3.17], [3, 2, 117, 2.73], [7005, 1, 76, 2.78], [997, 2, 177, 3.44], [3982, 3, 641, 4.81], [9760, 29, 58, 3.31], [10, 2, 101, 2.65], [3891, 1, 120, 2.38], [98, 11, 674, 3.35], [998, 2, 177, 3.27], [11739, 2, 34, 3.11], [6158, 2, 214, 3.69], [84, 2, 65, 3.09], [5165, 2, 357, 5.27], [346, 3, 589, 2.41], [9372, 1, 216, 3.96], [3980, 4, 356, 4.3], [5165, 1, 45, 5.79], [10388, 2, 159, 4.87], [2912, 1, 45, 4.47], [9491, 21, 1576, 2.84], [214, 3, 236, 1.72], [346, 1, 148, 2.26], [3981, 3, 1188, 4.05], [1492, 1, 36, 2.84]]</t>
+  </si>
+  <si>
+    <t>[[326, 2, 5, 0.47], [2049, 3, 10, 0.21], [6935, 2, 9, 0.72], [362, 2, 5, 0.7], [141, 2, 5, 0.54], [75, 2, 4, 0.49], [1776, 1, 4, 0.58], [8672, 2, 6, 0.47], [7886, 4, 4, 0.41], [2778, 2, 5, 0.2], [6936, 2, 6, 1.27], [305, 2, 4, 0.48], [593, 2, 6, 0.2], [1777, 1, 4, 0.93], [11681, 2, 5, 2.33], [8648, 2, 5, 0.77], [151, 1, 4, 0.44], [206, 2, 4, 0.2], [88, 10, 12, 0.33], [2328, 2, 5, 0.2], [83, 2, 4, 0.52], [8650, 2, 5, 1.15], [2050, 3, 5, 0.66], [5151, 2, 4, 1.4], [412, 1, 4, 0.91], [144, 2, 4, 1.0], [2991, 3, 4, 2.1], [22247, 2, 6, 1.06], [361, 2, 4, 0.49], [57, 1, 5, 0.2], [10149, 3, 15, 1.32], [2054, 3, 4, 1.36], [417, 2, 4, 0.29], [146, 2, 4, 0.56], [3478, 2, 4, 0.77], [45, 2, 4, 1.12], [143, 2, 4, 0.46], [7004, 1, 5, 0.47], [167, 3, 5, 1.09], [12721, 2, 6, 0.96], [168, 3, 6, 0.74], [2055, 3, 4, 0.94], [74, 1, 4, 0.84], [1446, 2, 4, 0.65], [346, 1, 4, 0.2], [84, 2, 4, 0.4], [7036, 1, 4, 2.21], [335, 3, 11, 0.39], [3495, 3, 15, 0.92], [5081, 2, 4, 0.2], [10, 2, 4, 0.92], [13028, 3, 4, 0.5], [8649, 2, 4, 1.15], [12870, 1, 4, 2.83], [410, 1, 4, 0.2], [11404, 2, 5, 0.2], [79, 1, 4, 0.2], [96, 11, 16, 0.46], [3889, 1, 4, 0.2], [145, 2, 4, 0.38], [5208, 3, 6, 0.19], [3893, 1, 5, 0.2], [1492, 1, 4, 0.2], [23, 1, 4, 1.73], [5812, 3, 5, 1.22], [1504, 2, 6, 0.2], [94, 4, 4, 0.2], [7005, 1, 4, 0.49], [13260, 29, 4, 0.96], [9827, 3, 4, 0.2], [411, 2, 4, 0.2], [3891, 1, 4, 0.2], [1490, 1, 5, 0.2], [25, 1, 4, 0.95], [21269, 3, 4, 1.45], [13280, 1, 4, 1.23], [998, 2, 4, 0.69], [9069, 1, 4, 1.62], [7567, 3, 4, 1.12], [5086, 1, 6, 1.11], [2878, 1, 6, 0.54], [1243, 2, 4, 1.0], [1703, 2, 4, 0.88], [9691, 1, 4, 1.9], [20927, 1, 4, 0.61], [997, 2, 4, 1.3], [5209, 3, 5, 0.19], [346, 3, 5, 0.21], [11914, 1, 5, 0.2], [5660, 2, 5, 1.05], [856, 1, 4, 0.44], [1124, 2, 5, 0.2], [5584, 3, 4, 0.44], [1070, 7, 11, 0.39], [159, 3, 6, 0.2], [8274, 3, 5, 1.09], [11811, 1, 4, 1.0], [996, 2, 5, 1.21], [1519, 3, 12, 0.23], [23961, 3, 4, 1.0], [8898, 3, 4, 2.67], [5513, 2, 4, 0.66], [22317, 3, 5, 0.51], [1091, 1, 4, 0.2], [24, 1, 5, 0.95], [952, 4, 4, 2.89], [13034, 3, 6, 0.77], [9081, 3, 9, 0.79], [12661, 1, 4, 2.1], [27, 1, 4, 1.23], [336, 15, 4, 0.2], [1413, 15, 4, 0.2], [9760, 29, 4, 0.2], [4203, 1, 5, 0.53], [10529, 29, 4, 0.94], [20498, 1, 4, 0.97], [9082, 3, 18, 1.17], [9372, 1, 4, 0.39], [1163, 3, 5, 0.2], [6097, 80, 4, 0.59], [6097, 29, 4, 0.2], [2109, 3, 9, 0.21], [82, 2, 4, 0.39], [972, 3, 5, 0.47], [995, 2, 4, 1.16], [66, 16, 4, 0.2], [2104, 3, 6, 1.63], [6098, 80, 4, 0.83], [20498, 3, 5, 0.94], [66, 1, 4, 0.46], [8635, 3, 5, 0.6], [12225, 1, 4, 0.52], [5813, 3, 4, 0.5], [10780, 10, 4, 1.48], [5946, 1, 4, 0.53], [6098, 29, 4, 0.8], [34, 1, 4, 1.05], [326, 2, 62, 3.13], [2049, 3, 432, 2.55], [6935, 2, 223, 4.7], [362, 2, 111, 3.97], [141, 2, 105, 3.14], [75, 2, 97, 4.11], [1776, 1, 76, 3.22], [8672, 2, 249, 3.02], [7886, 4, 57, 2.29], [2778, 2, 105, 3.21], [6936, 2, 190, 4.83], [305, 2, 98, 3.03], [593, 2, 153, 2.98], [1777, 1, 85, 3.88], [11681, 2, 182, 6.0], [8648, 2, 150, 5.36], [151, 1, 53, 2.46], [206, 2, 94, 1.82], [88, 10, 376, 4.6], [2328, 2, 102, 3.09], [83, 2, 37, 2.04], [8650, 2, 150, 5.4], [2050, 3, 318, 3.36], [5151, 2, 17, 3.81], [412, 1, 57, 3.83], [144, 2, 102, 3.09], [2991, 3, 108, 5.79], [22247, 2, 188, 4.65], [361, 2, 134, 2.05], [57, 1, 62, 2.85], [10149, 3, 676, 4.91], [2054, 3, 407, 4.61], [417, 2, 104, 4.53], [146, 2, 102, 4.34], [3478, 2, 66, 2.59], [45, 2, 73, 4.8], [143, 2, 100, 3.0], [7004, 1, 47, 2.43], [167, 3, 152, 4.16], [12721, 2, 188, 4.08], [168, 3, 273, 3.53], [2055, 3, 313, 4.85], [74, 1, 132, 4.67], [1446, 2, 79, 2.62], [346, 1, 107, 2.96], [84, 2, 58, 1.97], [7036, 1, 85, 5.36], [335, 3, 898, 5.59], [3495, 3, 641, 3.7], [5081, 2, 128, 3.15], [13028, 3, 99, 3.08], [8649, 2, 150, 5.12], [12870, 1, 92, 6.0], [410, 1, 72, 2.89], [11404, 2, 77, 2.67], [79, 1, 41, 1.5], [96, 11, 567, 2.96], [3889, 1, 84, 4.04], [145, 2, 130, 2.51], [5208, 3, 391, 2.1], [3893, 1, 84, 3.33], [1492, 1, 25, 2.86], [5812, 3, 391, 4.28]]</t>
+  </si>
+  <si>
+    <t>[[589, 2, 6, 0.2], [88, 10, 10, 0.19], [8915, 2, 5, 0.2], [2327, 2, 4, 0.52], [2778, 2, 5, 0.2], [305, 2, 5, 0.45], [6935, 2, 6, 1.69], [2328, 2, 4, 0.26], [6936, 2, 5, 1.66], [326, 2, 5, 1.22], [8648, 2, 4, 1.65], [8650, 2, 5, 2.03], [1446, 2, 4, 0.2], [7004, 1, 4, 0.74], [2049, 3, 6, 0.21], [205, 2, 4, 0.37], [144, 2, 5, 1.04], [143, 2, 4, 1.44], [10, 2, 5, 0.42], [94, 4, 4, 0.2], [7036, 1, 4, 1.2], [3893, 1, 4, 0.2], [1124, 2, 4, 0.79], [146, 2, 5, 1.07], [2055, 3, 5, 0.2], [206, 2, 5, 0.2], [5208, 3, 5, 0.19], [3891, 1, 4, 0.2], [75, 2, 5, 1.24], [362, 2, 4, 0.52], [7886, 4, 6, 0.44], [12224, 1, 4, 0.46], [3889, 1, 5, 0.2], [21793, 1, 4, 0.41], [2054, 3, 4, 0.49], [3980, 4, 6, 1.21], [7005, 1, 4, 1.08], [7084, 3, 4, 1.57], [12870, 1, 4, 2.18], [10149, 3, 13, 1.7], [2050, 3, 5, 0.56], [145, 2, 4, 1.5], [8672, 2, 5, 1.19], [2912, 1, 4, 1.58], [5165, 1, 4, 2.3], [998, 2, 4, 0.31], [20927, 1, 4, 1.76], [9760, 29, 4, 0.2], [997, 2, 4, 0.41], [1886, 2, 4, 0.62], [2436, 4, 4, 0.56], [7887, 4, 4, 0.97], [3, 2, 4, 0.2], [2424, 80, 4, 0.86], [6158, 2, 4, 0.44], [229, 1, 4, 1.05], [142, 2, 4, 0.36], [3495, 3, 13, 0.92], [955, 2, 4, 0.54], [346, 3, 4, 0.48], [5076, 1, 4, 0.89], [74, 1, 4, 3.27], [5165, 2, 5, 2.22], [11953, 1, 4, 0.51], [11954, 1, 4, 0.45], [11770, 1, 4, 0.2], [996, 2, 4, 0.74], [12721, 2, 4, 0.66], [9491, 21, 12, 0.22], [22316, 3, 4, 0.6], [1492, 1, 4, 0.2], [9372, 1, 4, 0.59], [11772, 1, 4, 0.2], [7573, 1, 9, 2.45], [2912, 2, 7, 2.11], [2423, 80, 5, 1.47], [5584, 3, 4, 2.8], [6497, 1, 4, 0.49], [2438, 2, 5, 2.15], [12229, 2, 4, 0.49], [3975, 4, 5, 1.26], [346, 1, 4, 0.37], [5209, 3, 5, 0.19], [5434, 1, 4, 1.33], [9082, 3, 19, 0.83], [823, 1, 4, 0.44], [10407, 10, 7, 1.18], [12764, 2, 8, 0.23], [4253, 1, 4, 0.2], [1622, 1, 4, 0.2], [11812, 1, 4, 0.2], [6496, 1, 4, 0.37], [2424, 29, 4, 0.86], [10388, 2, 4, 0.92], [5946, 1, 4, 0.84], [3900, 3, 4, 1.81], [8676, 2, 4, 1.22], [1339, 3, 10, 0.42], [1703, 2, 4, 0.83], [11490, 1, 4, 0.39], [2805, 137, 4, 1.33], [24257, 1, 4, 0.48], [13893, 2, 4, 1.17], [6097, 80, 4, 0.81], [37, 1, 4, 1.54], [6805, 1, 5, 0.2], [7567, 3, 4, 1.58], [22247, 2, 4, 1.31], [1414, 15, 4, 0.42], [9784, 1, 4, 0.99], [8635, 3, 4, 1.36], [11814, 1, 4, 0.48], [38, 1, 4, 1.16], [35, 1, 4, 1.54], [95, 3, 15, 0.19], [1274, 1, 4, 0.2], [23611, 3, 5, 0.42], [10386, 2, 4, 0.92], [1895, 3, 4, 1.83], [8104, 1, 4, 1.38], [788, 2, 4, 0.45], [12212, 29, 4, 0.47], [413, 1, 4, 0.66], [3979, 3, 10, 0.19], [8283, 2, 5, 0.68], [114, 3, 4, 1.53], [10780, 10, 4, 2.11], [12979, 25, 7, 0.72], [8274, 3, 4, 0.87], [76, 2, 4, 0.47], [8659, 1, 4, 0.41], [9065, 2, 4, 0.84], [12501, 1, 4, 1.24], [440, 3, 4, 1.25], [4232, 80, 4, 1.82], [418, 2, 4, 0.54], [19931, 1, 4, 1.26], [83, 2, 4, 0.44], [589, 2, 108, 3.51], [88, 10, 526, 2.5], [8915, 2, 160, 2.94], [2327, 2, 107, 3.59], [2778, 2, 112, 3.56], [305, 2, 104, 3.46], [6935, 2, 198, 6.0], [2328, 2, 107, 4.03], [6936, 2, 198, 5.9], [326, 2, 81, 4.44], [8648, 2, 159, 5.71], [8650, 2, 159, 6.0], [2049, 3, 324, 3.34], [144, 2, 51, 4.06], [94, 4, 85, 4.74], [7036, 1, 91, 5.66], [3893, 1, 89, 3.35], [1124, 2, 172, 3.16], [146, 2, 107, 4.24], [2055, 3, 377, 2.57], [206, 2, 25, 2.22], [5208, 3, 326, 2.1], [3891, 1, 89, 3.4], [75, 2, 122, 4.52], [362, 2, 82, 3.59], [12224, 1, 154, 2.31], [3889, 1, 89, 4.01], [21793, 1, 222, 2.45], [2054, 3, 111, 2.25], [3980, 4, 403, 4.52], [12870, 1, 97, 5.83], [10149, 3, 625, 4.75], [2050, 3, 135, 2.57], [145, 2, 52, 4.06], [8672, 2, 199, 6.0], [2912, 1, 43, 4.46], [5165, 1, 43, 5.85], [998, 2, 169, 4.14], [9760, 29, 51, 3.87], [997, 2, 222, 3.07], [1886, 2, 144, 2.61], [2436, 4, 108, 2.5], [3, 2, 102, 3.96], [2424, 80, 156, 4.21], [6158, 2, 241, 2.98], [229, 1, 60, 3.53], [142, 2, 110, 3.29], [3495, 3, 676, 4.23], [955, 2, 100, 2.46], [346, 3, 568, 2.35], [5076, 1, 120, 3.44], [74, 1, 164, 6.0], [5165, 2, 344, 5.45], [11953, 1, 185, 2.4], [11954, 1, 187, 2.29], [11770, 1, 154, 3.85], [996, 2, 222, 2.84], [12721, 2, 262, 2.87], [9491, 21, 1499, 3.56], [22316, 3, 291, 2.58], [1492, 1, 27, 3.61], [9372, 1, 212, 4.51]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 6, 1.34], [305, 2, 4, 0.51], [2778, 2, 5, 0.2], [205, 2, 5, 0.2], [6936, 2, 5, 1.35], [616, 2, 4, 0.45], [88, 10, 11, 0.19], [144, 2, 5, 0.47], [8648, 2, 4, 0.46], [8915, 2, 5, 0.42], [326, 2, 5, 0.7], [589, 2, 5, 0.2], [11681, 2, 5, 1.37], [7036, 1, 4, 1.23], [8650, 2, 5, 0.96], [2327, 2, 5, 0.2], [593, 2, 5, 0.52], [3893, 1, 5, 0.2], [141, 2, 5, 0.53], [7004, 1, 4, 1.01], [3840, 1, 4, 0.39], [3891, 1, 4, 0.53], [2050, 3, 5, 1.69], [146, 2, 5, 1.07], [3889, 1, 4, 0.53], [2055, 3, 4, 1.73], [143, 2, 5, 0.51], [3980, 4, 5, 1.2], [10, 2, 4, 0.67], [7885, 4, 5, 0.2], [8672, 2, 5, 0.73], [2054, 3, 5, 1.86], [7886, 4, 4, 0.9], [12870, 1, 5, 0.92], [2057, 3, 5, 1.78], [5165, 1, 4, 2.3], [3975, 4, 4, 1.26], [159, 3, 5, 0.58], [7084, 3, 4, 0.28], [145, 2, 4, 1.03], [523, 2, 4, 1.03], [21793, 1, 4, 0.41], [75, 2, 4, 0.46], [7005, 1, 4, 0.74], [3981, 3, 13, 1.15], [9760, 29, 5, 0.2], [3982, 3, 11, 1.18], [20927, 1, 4, 0.67], [6158, 2, 6, 0.2], [33, 1, 4, 1.33], [997, 2, 5, 1.18], [214, 3, 11, 0.2], [5165, 2, 5, 2.22], [2912, 1, 4, 1.58], [7887, 4, 5, 1.45], [22316, 3, 5, 0.51], [11953, 1, 5, 0.2], [229, 1, 4, 1.2], [998, 2, 4, 0.67], [35, 1, 4, 1.33], [346, 3, 5, 0.21], [6497, 1, 4, 0.45], [389, 4, 5, 0.88], [996, 2, 6, 1.47], [1492, 1, 4, 0.7], [972, 3, 4, 1.51], [955, 2, 4, 0.73], [11490, 1, 4, 0.53], [6496, 1, 5, 0.55], [74, 1, 5, 0.62], [2336, 3, 5, 0.46], [22317, 3, 5, 0.51], [1413, 15, 4, 0.2], [4176, 4, 5, 1.31], [2912, 2, 5, 1.53], [336, 15, 5, 0.37], [12212, 29, 4, 0.5], [192, 3, 9, 1.01], [7573, 1, 5, 0.97], [8677, 3, 5, 0.9], [39, 1, 4, 0.51], [37, 1, 4, 0.66], [11085, 2, 5, 1.76], [201, 3, 4, 0.51], [345, 3, 4, 0.51], [1277, 1, 4, 0.65], [8676, 2, 4, 0.98], [1274, 1, 4, 0.67], [21269, 3, 4, 2.99], [13023, 3, 4, 1.26], [12271, 2, 4, 0.7], [6494, 1, 4, 0.2], [10388, 2, 5, 1.14], [3, 2, 5, 0.46], [10408, 10, 6, 1.64], [202, 2, 4, 0.44], [10936, 2, 4, 1.7], [36, 1, 4, 1.16], [2805, 137, 5, 0.47], [3577, 25, 4, 0.59], [9, 1, 4, 0.5], [5812, 3, 4, 0.51], [11489, 1, 4, 0.5], [11812, 1, 4, 0.2], [1414, 15, 4, 0.45], [20498, 3, 5, 0.99], [3048, 3, 4, 1.42], [9691, 1, 4, 1.25], [8675, 2, 4, 1.02], [9372, 1, 4, 1.35], [346, 1, 5, 0.2], [13928, 1, 4, 0.55], [12225, 1, 4, 1.14], [10386, 2, 4, 0.99], [12764, 2, 6, 0.35], [13893, 2, 4, 1.13], [13280, 1, 4, 0.59], [11814, 1, 4, 0.2], [8898, 3, 4, 2.31], [11089, 1, 4, 0.38], [10407, 10, 6, 1.31], [3576, 25, 4, 0.51], [491, 10, 6, 0.69], [13035, 3, 4, 1.32], [972, 1, 4, 0.5], [9069, 1, 4, 0.74], [10939, 2, 4, 1.93], [8659, 1, 4, 1.01], [19931, 1, 5, 0.76], [11087, 2, 4, 1.27], [2438, 2, 5, 1.87], [958, 2, 4, 0.47], [3577, 29, 4, 0.52], [23611, 3, 5, 0.5], [1523, 1, 4, 1.08], [6935, 2, 223, 5.26], [305, 2, 119, 3.38], [2778, 2, 127, 3.51], [205, 2, 39, 3.38], [6936, 2, 223, 5.64], [616, 2, 106, 2.23], [88, 10, 462, 3.29], [144, 2, 35, 3.5], [8648, 2, 185, 5.15], [8915, 2, 139, 2.04], [326, 2, 87, 3.3], [589, 2, 124, 3.05], [11681, 2, 222, 5.79], [7036, 1, 104, 4.72], [8650, 2, 185, 4.92], [2327, 2, 123, 3.43], [593, 2, 186, 3.67], [3893, 1, 97, 2.69], [141, 2, 125, 4.03], [7004, 1, 57, 3.23], [3840, 1, 41, 1.53], [3891, 1, 120, 2.38], [2050, 3, 374, 5.77], [146, 2, 123, 4.01], [3889, 1, 120, 2.38], [2055, 3, 374, 5.86], [143, 2, 120, 3.39], [3980, 4, 391, 4.8], [10, 2, 101, 2.65], [8672, 2, 232, 5.13], [2054, 3, 374, 6.0], [12870, 1, 112, 6.0], [2057, 3, 374, 5.97], [5165, 1, 45, 5.79], [3975, 4, 391, 4.93], [159, 3, 682, 2.38], [7084, 3, 105, 3.88], [145, 2, 54, 3.93], [523, 2, 125, 3.5], [21793, 1, 230, 2.38], [75, 2, 141, 2.25], [7005, 1, 76, 2.78], [3981, 3, 1310, 4.44], [9760, 29, 58, 3.31], [3982, 3, 641, 4.81], [20927, 1, 21, 3.02], [6158, 2, 63, 3.69], [997, 2, 194, 6.0], [214, 3, 194, 2.12], [5165, 2, 357, 5.27], [2912, 1, 45, 4.47], [22316, 3, 233, 2.92], [11953, 1, 49, 2.84], [229, 1, 62, 3.67], [998, 2, 143, 5.74], [346, 3, 457, 2.85], [6497, 1, 36, 2.23], [389, 4, 166, 4.21], [996, 2, 194, 6.0], [1492, 1, 36, 2.84], [955, 2, 102, 2.77], [11490, 1, 104, 2.38], [6496, 1, 30, 3.0], [74, 1, 164, 4.25], [2336, 3, 557, 2.18]]</t>
+  </si>
+  <si>
+    <t>[[141, 2, 4, 0.2], [2328, 2, 5, 0.2], [8650, 2, 4, 1.46], [130, 1, 5, 0.45], [2327, 2, 5, 0.2], [589, 2, 6, 0.2], [8672, 2, 6, 0.41], [326, 2, 4, 1.62], [6935, 2, 9, 1.31], [206, 2, 4, 0.2], [142, 2, 5, 0.2], [11837, 2, 4, 0.55], [11838, 2, 5, 0.2], [6936, 2, 4, 1.59], [12721, 2, 5, 0.48], [8915, 2, 5, 0.2], [2049, 3, 11, 0.21], [1446, 2, 4, 0.2], [2778, 2, 6, 0.2], [8676, 2, 4, 0.52], [615, 2, 4, 0.44], [305, 2, 5, 0.98], [593, 2, 5, 0.48], [616, 2, 4, 0.45], [21793, 1, 4, 0.99], [413, 1, 4, 0.89], [11835, 2, 4, 0.55], [411, 2, 4, 0.2], [412, 1, 4, 0.5], [10574, 3, 6, 1.75], [12349, 1, 4, 0.52], [8675, 2, 6, 0.73], [145, 2, 6, 0.49], [8673, 2, 5, 0.47], [143, 2, 4, 0.57], [6158, 2, 4, 0.88], [151, 1, 4, 0.45], [11836, 2, 5, 0.2], [10149, 3, 13, 0.75], [3495, 3, 13, 0.85], [2050, 3, 5, 0.34], [2055, 3, 5, 0.41], [146, 2, 4, 0.79], [2054, 3, 5, 0.51], [75, 2, 5, 1.67], [7885, 4, 5, 0.94], [88, 10, 8, 0.95], [416, 1, 4, 0.8], [144, 2, 4, 0.54], [7084, 3, 4, 0.55], [2859, 15, 4, 0.41], [21798, 1, 4, 0.59], [10993, 2, 4, 0.39], [346, 3, 5, 0.46], [335, 3, 10, 0.87], [2424, 29, 4, 2.32], [7705, 2, 4, 1.05], [2423, 80, 4, 0.58], [2423, 29, 4, 0.58], [3848, 2, 4, 1.07], [7704, 2, 4, 1.05], [5165, 1, 4, 2.3], [13023, 3, 6, 1.51], [346, 1, 4, 0.35], [1519, 3, 10, 0.23], [201, 3, 4, 1.01], [2424, 80, 4, 2.32], [60, 3, 5, 1.93], [1414, 15, 4, 0.41], [410, 1, 4, 0.38], [6494, 1, 4, 0.47], [345, 3, 4, 1.04], [13034, 3, 5, 1.37], [11490, 1, 4, 0.46], [5208, 3, 8, 0.48], [11770, 1, 4, 0.39], [432, 3, 5, 2.04], [3430, 15, 4, 0.35], [11954, 1, 4, 0.68], [2703, 3, 4, 0.83], [6952, 1, 4, 0.48], [7004, 1, 4, 0.38], [7706, 2, 4, 0.55], [20927, 1, 4, 0.7], [3429, 15, 4, 0.42], [114, 3, 4, 0.2], [308, 1, 5, 1.49], [7886, 4, 6, 0.44], [1886, 2, 4, 0.41], [105, 3, 4, 0.2], [11811, 1, 4, 0.38], [13928, 1, 4, 0.55], [2331, 1, 4, 0.52], [11089, 1, 4, 0.42], [94, 4, 4, 0.79], [3981, 3, 8, 0.51], [944, 15, 4, 0.41], [10407, 10, 6, 1.14], [5584, 3, 4, 2.72], [1490, 1, 4, 0.87], [8274, 3, 4, 2.02], [11674, 1, 4, 0.87], [3, 2, 4, 0.41], [22317, 3, 5, 0.41], [13033, 3, 4, 0.4], [952, 4, 4, 1.77], [10410, 10, 6, 1.18], [9690, 1, 4, 0.71], [7708, 2, 4, 1.05], [9342, 2, 4, 0.49], [1339, 3, 10, 0.42], [10409, 10, 6, 1.15], [202, 2, 4, 0.38], [21003, 2, 4, 0.72], [8898, 3, 4, 0.71], [10398, 2, 4, 0.87], [5812, 3, 4, 1.51], [957, 2, 4, 0.37], [95, 3, 8, 0.72], [963, 3, 4, 0.92], [823, 1, 4, 1.64], [6497, 1, 4, 0.44], [20969, 3, 4, 0.86], [10516, 3, 9, 0.37], [9082, 3, 15, 0.83], [186, 3, 7, 0.54], [20196, 2, 4, 0.72], [11677, 1, 4, 0.78], [4253, 1, 4, 0.73], [3980, 4, 5, 1.26], [7703, 2, 4, 1.05], [20555, 2, 4, 0.5], [3478, 2, 4, 0.77], [20682, 1, 4, 0.53], [6630, 3, 4, 1.83], [5165, 2, 5, 2.22], [8897, 3, 4, 0.71], [141, 2, 114, 3.66], [2328, 2, 109, 4.64], [8650, 2, 164, 5.1], [2327, 2, 109, 4.61], [589, 2, 119, 3.73], [8672, 2, 208, 4.69], [326, 2, 83, 4.69], [6935, 2, 204, 6.0], [206, 2, 29, 1.69], [142, 2, 114, 3.83], [11837, 2, 247, 2.64], [11838, 2, 193, 3.8], [6936, 2, 204, 5.36], [12721, 2, 205, 4.24], [1446, 2, 85, 2.42], [2778, 2, 136, 3.62], [8676, 2, 264, 2.57], [615, 2, 102, 2.42], [305, 2, 39, 3.81], [593, 2, 211, 2.41], [616, 2, 102, 2.44], [21793, 1, 214, 3.75], [413, 1, 79, 3.28], [11835, 2, 247, 2.64], [411, 2, 48, 2.4], [412, 1, 77, 3.49], [10574, 3, 362, 5.28], [12349, 1, 533, 3.29], [8675, 2, 208, 4.72], [145, 2, 99, 4.41], [8673, 2, 244, 5.19], [143, 2, 136, 2.67], [6158, 2, 239, 3.75], [151, 1, 61, 2.48], [11836, 2, 193, 3.64], [10149, 3, 807, 3.07], [3495, 3, 886, 3.08], [2050, 3, 349, 2.92], [146, 2, 138, 4.38], [2054, 3, 137, 2.97], [75, 2, 104, 5.49], [88, 10, 515, 4.9], [416, 1, 79, 3.11], [144, 2, 136, 2.61], [7084, 3, 119, 3.58], [2859, 15, 63, 3.18], [21798, 1, 128, 2.72], [10993, 2, 14, 1.67], [346, 3, 566, 2.39], [2424, 29, 31, 6.0], [7705, 2, 163, 4.19], [2423, 80, 169, 3.13], [2423, 29, 34, 3.13], [3848, 2, 154, 3.64], [7704, 2, 163, 4.19], [5165, 1, 43, 6.0], [13023, 3, 543, 4.34], [346, 1, 142, 2.24], [201, 3, 216, 5.45], [2424, 80, 153, 6.0], [1414, 15, 91, 2.36], [6494, 1, 47, 2.47], [345, 3, 277, 4.39]]</t>
+  </si>
+  <si>
+    <t>[[2778, 2, 6, 0.2], [6935, 2, 7, 1.3], [6936, 2, 4, 1.17], [305, 2, 4, 0.2], [8672, 2, 5, 0.41], [615, 2, 4, 0.2], [145, 2, 5, 0.49], [12721, 2, 5, 0.72], [2327, 2, 4, 0.2], [143, 2, 4, 1.01], [146, 2, 4, 1.12], [2328, 2, 4, 0.2], [11681, 2, 5, 1.31], [5491, 2, 4, 0.2], [205, 2, 5, 0.37], [8650, 2, 4, 1.03], [11835, 2, 4, 0.55], [144, 2, 5, 1.03], [8673, 2, 5, 0.73], [8676, 2, 4, 0.6], [308, 1, 5, 0.73], [417, 2, 4, 0.47], [11837, 2, 4, 0.55], [3, 2, 4, 0.66], [6097, 80, 5, 2.36], [22247, 2, 5, 1.21], [6497, 1, 4, 0.2], [11836, 2, 5, 0.2], [990, 2, 4, 0.27], [593, 2, 5, 0.2], [6097, 29, 4, 2.86], [523, 2, 4, 0.66], [6098, 80, 4, 2.09], [11739, 2, 4, 0.2], [88, 10, 10, 0.19], [12350, 1, 4, 3.59], [8915, 2, 4, 0.2], [2054, 3, 4, 0.62], [326, 2, 4, 1.35], [13260, 29, 4, 0.73], [3429, 15, 4, 0.36], [75, 2, 4, 0.86], [336, 15, 4, 0.39], [1413, 15, 5, 0.2], [1492, 1, 4, 1.09], [411, 2, 4, 0.76], [6098, 29, 4, 3.09], [1050, 2, 4, 0.2], [1339, 3, 10, 0.42], [2422, 80, 4, 1.05], [6496, 1, 5, 1.05], [214, 3, 9, 0.54], [947, 15, 4, 0.44], [7704, 2, 4, 1.35], [10149, 3, 13, 0.88], [346, 1, 4, 0.35], [2859, 15, 4, 0.97], [346, 3, 5, 0.46], [345, 3, 4, 0.51], [11738, 2, 4, 0.8], [13264, 29, 5, 0.52], [13258, 29, 4, 0.7], [1490, 1, 4, 1.45], [1243, 2, 4, 0.61], [7004, 1, 5, 0.81], [229, 1, 4, 0.69], [5208, 3, 10, 0.54], [201, 3, 4, 1.05], [22558, 3, 6, 0.2], [10407, 10, 6, 1.14], [13259, 29, 4, 0.48], [2331, 1, 4, 0.52], [432, 3, 4, 0.9], [7705, 2, 4, 1.35], [12229, 2, 4, 0.45], [7706, 2, 4, 1.35], [418, 2, 4, 0.5], [114, 3, 4, 0.41], [957, 2, 5, 1.01], [13928, 1, 4, 0.55], [1163, 3, 4, 1.45], [3478, 2, 4, 0.77], [11844, 2, 4, 0.63], [8938, 2, 4, 0.43], [7036, 1, 4, 0.43], [9784, 1, 4, 1.01], [11490, 1, 4, 0.53], [11687, 2, 4, 0.79], [11404, 2, 4, 0.48], [2703, 3, 4, 0.83], [410, 1, 4, 0.63], [12348, 1, 4, 0.51], [13258, 25, 4, 0.66], [1886, 2, 4, 0.35], [19687, 1, 4, 1.21], [9065, 2, 4, 0.84], [94, 4, 4, 0.6], [12870, 1, 4, 0.94], [413, 1, 4, 1.68], [11690, 2, 4, 0.52], [956, 2, 4, 0.53], [7708, 2, 4, 1.35], [11161, 1, 5, 1.2], [11159, 1, 7, 0.84], [9760, 29, 4, 0.85], [11689, 2, 4, 0.77], [22125, 2, 4, 0.36], [5976, 1, 4, 1.12], [12373, 1, 5, 0.45], [105, 3, 4, 0.41], [21781, 2, 4, 0.47], [2991, 3, 4, 2.31], [1274, 1, 4, 1.97], [7005, 1, 4, 0.81], [5584, 3, 4, 2.72], [2805, 137, 5, 2.01], [9209, 29, 4, 0.73], [11811, 1, 4, 0.38], [3495, 3, 13, 0.85], [13259, 25, 4, 0.48], [11489, 1, 4, 1.02], [4253, 1, 4, 0.23], [8285, 2, 5, 0.49], [20927, 1, 4, 0.7], [8600, 1, 4, 0.86], [9372, 1, 4, 1.74], [247, 1, 4, 0.73], [10147, 1, 4, 0.36], [12764, 2, 5, 0.43], [21269, 3, 4, 1.4], [3722, 25, 5, 0.38], [9491, 21, 10, 1.69], [7007, 1, 4, 0.81], [11887, 2, 4, 0.57], [5076, 1, 4, 1.14], [6360, 10, 9, 0.65], [2778, 2, 133, 3.36], [6935, 2, 237, 6.0], [6936, 2, 242, 5.18], [305, 2, 107, 3.74], [8672, 2, 265, 3.47], [615, 2, 113, 2.8], [145, 2, 109, 3.69], [12721, 2, 204, 4.47], [2327, 2, 109, 4.61], [143, 2, 39, 4.22], [146, 2, 109, 4.42], [2328, 2, 109, 4.64], [11681, 2, 260, 5.33], [5491, 2, 100, 2.18], [205, 2, 29, 3.53], [8650, 2, 163, 6.0], [11835, 2, 247, 2.64], [144, 2, 115, 4.21], [8673, 2, 208, 5.73], [8676, 2, 208, 3.88], [308, 1, 159, 3.34], [417, 2, 121, 4.17], [11837, 2, 247, 2.64], [3, 2, 88, 3.99], [6097, 80, 49, 6.0], [22247, 2, 204, 5.02], [6497, 1, 29, 3.63], [11836, 2, 193, 3.72], [990, 2, 40, 3.84], [593, 2, 179, 3.67], [6097, 29, 25, 6.0], [523, 2, 114, 4.01], [11739, 2, 23, 3.32], [88, 10, 406, 5.3], [12350, 1, 555, 6.0], [8915, 2, 51, 2.36], [2054, 3, 126, 3.1], [326, 2, 79, 4.17], [13260, 29, 67, 3.85], [75, 2, 133, 3.41], [336, 15, 29, 1.67], [1413, 15, 26, 2.41], [1492, 1, 15, 3.32], [411, 2, 29, 2.38], [1339, 3, 461, 1.67], [2422, 80, 168, 3.75], [6496, 1, 34, 4.35], [214, 3, 584, 4.28], [947, 15, 36, 3.13], [7704, 2, 162, 4.45], [10149, 3, 795, 3.76], [346, 1, 142, 2.24], [2859, 15, 59, 3.98], [346, 3, 566, 2.39], [345, 3, 276, 4.24], [13264, 29, 63, 3.28], [13258, 29, 36, 4.07], [1490, 1, 45, 4.44], [229, 1, 75, 3.64], [5208, 3, 148, 3.08], [201, 3, 276, 4.63], [22558, 3, 347, 4.02], [10407, 10, 1103, 3.67], [13259, 29, 32, 3.02]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 5, 0.91], [141, 2, 4, 0.48], [362, 2, 4, 0.97], [361, 2, 5, 0.59], [12721, 2, 6, 1.21], [6935, 2, 8, 1.55], [206, 2, 4, 0.2], [8676, 2, 5, 0.6], [8675, 2, 5, 0.73], [2049, 3, 12, 0.21], [3, 2, 6, 0.61], [22247, 2, 5, 1.0], [305, 2, 5, 0.98], [523, 2, 4, 0.66], [8650, 2, 5, 1.27], [11838, 2, 4, 0.41], [8648, 2, 5, 0.88], [2328, 2, 4, 1.16], [2776, 2, 5, 0.2], [11739, 2, 4, 0.2], [2327, 2, 4, 0.64], [11837, 2, 4, 0.45], [411, 2, 4, 0.2], [12352, 1, 4, 2.59], [589, 2, 5, 0.2], [412, 1, 4, 0.64], [143, 2, 4, 0.51], [11835, 2, 4, 0.49], [146, 2, 4, 0.38], [583, 2, 4, 0.81], [6097, 80, 4, 2.61], [326, 2, 5, 0.41], [10149, 3, 13, 0.75], [145, 2, 4, 0.38], [11836, 2, 5, 0.54], [6097, 29, 5, 0.66], [144, 2, 4, 0.49], [10574, 3, 5, 0.6], [75, 2, 4, 0.87], [12344, 1, 4, 1.35], [6496, 1, 4, 1.37], [6494, 1, 4, 0.47], [2054, 3, 4, 1.21], [1413, 15, 4, 0.46], [6098, 80, 4, 0.83], [8915, 2, 5, 0.2], [1243, 2, 5, 0.23], [1886, 2, 6, 0.2], [21793, 1, 4, 0.99], [944, 15, 4, 0.2], [6098, 29, 4, 1.33], [1492, 1, 4, 0.47], [247, 1, 4, 1.91], [3429, 15, 4, 0.35], [2859, 15, 4, 0.39], [1490, 1, 4, 0.44], [1414, 15, 4, 0.35], [201, 3, 4, 0.44], [6158, 2, 4, 0.88], [3478, 2, 4, 0.77], [308, 1, 5, 0.29], [13928, 1, 4, 0.55], [336, 15, 4, 0.39], [7084, 3, 4, 0.55], [11489, 1, 4, 0.56], [3982, 3, 12, 0.19], [1703, 2, 4, 0.7], [12526, 2, 4, 1.05], [9342, 2, 4, 0.49], [5812, 3, 5, 2.0], [186, 3, 7, 0.54], [11490, 1, 4, 0.48], [4253, 1, 4, 0.73], [94, 4, 4, 0.39], [5813, 3, 6, 2.0], [1050, 2, 4, 0.36], [10398, 2, 4, 0.37], [5811, 3, 5, 1.48], [2821, 3, 8, 0.5], [5939, 3, 4, 0.47], [8599, 1, 4, 1.23], [11811, 1, 4, 0.38], [229, 1, 4, 1.71], [3980, 4, 5, 1.26], [8943, 3, 4, 0.52], [11771, 1, 4, 0.68], [8898, 3, 5, 3.26], [1339, 3, 10, 0.42], [3495, 3, 13, 0.85], [2991, 3, 5, 1.5], [1049, 2, 4, 0.36], [12764, 2, 5, 0.43], [346, 3, 5, 0.46], [13928, 2, 4, 0.55], [19687, 1, 4, 1.21], [192, 3, 7, 0.76], [7036, 1, 4, 0.43], [9690, 1, 4, 0.8], [22573, 2, 4, 0.99], [5584, 3, 4, 2.72], [10124, 1, 4, 2.17], [105, 3, 4, 0.38], [8897, 3, 5, 3.26], [8274, 3, 4, 1.73], [18964, 1, 4, 0.79], [11886, 2, 4, 0.75], [10147, 1, 4, 0.36], [3334, 5, 4, 2.01], [1701, 2, 4, 0.55], [1277, 1, 4, 0.44], [1523, 1, 4, 1.04], [20927, 1, 4, 0.64], [4001, 3, 15, 0.96], [8635, 3, 4, 1.73], [8286, 2, 5, 0.36], [1274, 1, 4, 2.04], [23275, 2, 4, 0.99], [11678, 1, 4, 0.38], [10516, 3, 9, 0.86], [13260, 29, 4, 0.73], [23031, 3, 4, 1.38], [3984, 3, 5, 0.62], [11677, 1, 4, 0.78], [3979, 3, 5, 0.88], [9065, 2, 4, 0.84], [45, 2, 4, 2.19], [21269, 3, 4, 1.4], [10181, 26, 5, 0.46], [346, 1, 4, 0.35], [9373, 5, 4, 0.36], [11690, 2, 4, 0.52], [973, 3, 5, 0.65], [9069, 1, 4, 0.62], [5976, 1, 4, 1.12], [7005, 1, 4, 0.74], [8285, 2, 5, 0.49], [8672, 2, 208, 4.69], [141, 2, 114, 3.66], [362, 2, 75, 3.31], [361, 2, 82, 3.87], [12721, 2, 75, 5.58], [6935, 2, 203, 6.0], [206, 2, 29, 1.69], [8676, 2, 208, 3.88], [8675, 2, 208, 4.17], [2049, 3, 290, 2.08], [3, 2, 88, 3.91], [22247, 2, 206, 4.61], [305, 2, 107, 3.67], [523, 2, 114, 4.01], [8650, 2, 164, 4.93], [11838, 2, 246, 2.36], [8648, 2, 164, 4.8], [2328, 2, 139, 3.8], [2776, 2, 114, 3.67], [11739, 2, 25, 2.88], [2327, 2, 130, 3.76], [11837, 2, 229, 3.15], [411, 2, 61, 3.48], [12352, 1, 560, 6.0], [412, 1, 77, 3.63], [143, 2, 136, 2.55], [11835, 2, 229, 3.22], [146, 2, 138, 3.59], [583, 2, 60, 3.03], [6097, 80, 48, 6.0], [326, 2, 79, 3.81], [10149, 3, 807, 3.07], [145, 2, 138, 3.28], [11836, 2, 229, 3.32], [6097, 29, 29, 3.55], [144, 2, 136, 2.51], [10574, 3, 460, 4.43], [75, 2, 134, 3.24], [12344, 1, 560, 4.17], [6496, 1, 36, 4.21], [6494, 1, 47, 2.47], [1413, 15, 91, 2.46], [6098, 80, 69, 3.79], [1243, 2, 26, 3.69], [1886, 2, 114, 3.71], [21793, 1, 214, 3.75], [944, 15, 12, 3.65], [6098, 29, 33, 4.49], [1492, 1, 30, 2.43], [247, 1, 80, 5.25], [2859, 15, 63, 2.32], [1490, 1, 47, 2.42], [1414, 15, 91, 2.24], [201, 3, 281, 2.42], [6158, 2, 239, 3.75], [3478, 2, 40, 2.86], [308, 1, 148, 4.19], [13928, 1, 43, 4.47], [336, 15, 29, 1.67], [7084, 3, 119, 3.58], [3982, 3, 698, 2.93], [1703, 2, 152, 3.14], [12526, 2, 253, 3.59], [9342, 2, 122, 1.85]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 8, 0.97], [305, 2, 4, 0.2], [2328, 2, 5, 0.2], [8672, 2, 7, 0.2], [8650, 2, 4, 0.46], [248, 1, 5, 0.2], [143, 2, 5, 0.51], [6936, 2, 4, 1.26], [145, 2, 4, 0.5], [11837, 2, 4, 0.45], [205, 2, 4, 0.37], [11681, 2, 5, 1.2], [417, 2, 4, 0.54], [589, 2, 4, 0.36], [75, 2, 5, 0.97], [146, 2, 4, 0.57], [1124, 2, 8, 0.2], [12721, 2, 5, 0.48], [8673, 2, 5, 0.2], [206, 2, 4, 0.2], [8853, 2, 4, 1.46], [326, 2, 5, 0.85], [1005, 2, 4, 0.2], [11835, 2, 5, 0.36], [144, 2, 4, 0.46], [8915, 2, 5, 0.89], [308, 1, 5, 0.73], [88, 10, 10, 0.19], [434, 2, 5, 0.2], [11739, 2, 5, 0.89], [6158, 2, 6, 0.2], [11234, 2, 4, 0.2], [2424, 29, 4, 2.32], [11738, 2, 4, 0.2], [2423, 29, 4, 0.58], [7704, 2, 4, 1.35], [11836, 2, 4, 0.2], [2424, 80, 4, 2.32], [7705, 2, 4, 1.65], [1413, 15, 4, 0.2], [2054, 3, 4, 0.65], [7706, 2, 4, 1.65], [10574, 3, 5, 1.75], [2423, 80, 4, 0.58], [3, 2, 4, 0.54], [412, 1, 4, 0.64], [2859, 15, 4, 1.87], [3478, 2, 4, 1.28], [12720, 2, 4, 0.98], [10149, 3, 13, 1.48], [74, 1, 4, 1.63], [12343, 1, 4, 1.57], [346, 3, 5, 0.46], [11919, 1, 4, 0.9], [1339, 3, 10, 0.42], [60, 3, 5, 1.7], [6497, 1, 4, 0.44], [346, 1, 4, 0.35], [418, 2, 4, 0.6], [13928, 1, 4, 0.55], [411, 2, 4, 0.37], [13034, 3, 6, 0.65], [18964, 1, 4, 0.79], [13028, 3, 4, 0.37], [11089, 1, 4, 0.42], [10993, 2, 4, 0.59], [413, 1, 4, 1.68], [13260, 29, 5, 1.17], [7036, 1, 4, 0.93], [94, 4, 5, 1.27], [6952, 1, 4, 1.59], [3891, 1, 4, 1.26], [1050, 2, 4, 0.2], [8274, 3, 4, 0.58], [14037, 3, 4, 0.96], [7707, 2, 4, 1.25], [2991, 3, 4, 2.17], [22317, 3, 8, 0.2], [21793, 1, 5, 1.94], [7708, 2, 4, 1.55], [3889, 1, 5, 2.08], [345, 3, 5, 1.26], [6630, 3, 4, 2.4], [11490, 1, 4, 0.53], [5208, 3, 8, 0.48], [1243, 2, 5, 0.45], [1490, 1, 4, 0.87], [2912, 1, 4, 1.54], [3495, 3, 13, 0.85], [563, 2, 4, 0.93], [229, 1, 4, 0.69], [20680, 1, 4, 0.92], [1049, 2, 4, 0.2], [336, 15, 4, 0.2], [6627, 3, 4, 0.2], [5940, 3, 4, 0.2], [12229, 2, 4, 0.45], [192, 3, 7, 1.24], [11581, 29, 4, 0.87], [13033, 3, 4, 0.69], [23275, 2, 4, 0.99], [2331, 1, 4, 0.64], [1274, 1, 4, 1.57], [2805, 137, 5, 1.4], [247, 1, 4, 1.55], [5165, 1, 4, 2.3], [201, 3, 4, 1.21], [8635, 3, 4, 0.59], [114, 3, 4, 1.73], [942, 3, 4, 0.25], [11914, 1, 4, 0.41], [6496, 1, 4, 1.55], [8898, 3, 5, 0.48], [6629, 3, 4, 0.47], [1703, 2, 4, 0.47], [7886, 4, 4, 0.44], [11770, 1, 4, 1.57], [5812, 3, 5, 0.5], [9372, 1, 4, 1.74], [3934, 5, 6, 0.56], [9760, 29, 4, 1.96], [202, 2, 4, 0.93], [21269, 3, 5, 0.5], [186, 3, 9, 1.23], [332, 2, 4, 0.93], [951, 4, 4, 1.5], [83, 2, 4, 0.55], [4940, 1, 4, 0.36], [10527, 3, 8, 2.22], [6360, 10, 10, 0.83], [5811, 3, 5, 0.5], [1886, 2, 4, 0.44], [21781, 2, 4, 0.47], [12373, 1, 5, 0.45], [9082, 3, 15, 0.83], [20927, 1, 4, 0.7], [5584, 3, 4, 2.72], [13498, 3, 4, 0.88], [12870, 1, 4, 1.74], [6935, 2, 204, 6.0], [305, 2, 125, 3.17], [2328, 2, 109, 4.64], [8672, 2, 208, 5.22], [8650, 2, 192, 4.6], [248, 1, 14, 1.58], [143, 2, 108, 3.72], [6936, 2, 204, 5.75], [145, 2, 110, 3.71], [11837, 2, 246, 2.45], [205, 2, 29, 3.53], [11681, 2, 261, 5.0], [417, 2, 134, 3.32], [75, 2, 106, 4.57], [146, 2, 110, 3.82], [1124, 2, 134, 4.52], [12721, 2, 205, 4.24], [8673, 2, 209, 5.48], [206, 2, 60, 3.53], [8853, 2, 204, 5.66], [326, 2, 83, 3.25], [1005, 2, 77, 4.76], [11835, 2, 229, 2.97], [144, 2, 110, 3.63], [8915, 2, 100, 3.75], [308, 1, 159, 3.34], [88, 10, 406, 5.3], [434, 2, 99, 2.42], [6158, 2, 189, 4.79], [11234, 2, 144, 3.13], [2424, 29, 31, 6.0], [2423, 29, 34, 3.13], [7704, 2, 162, 4.45], [11836, 2, 193, 3.64], [2424, 80, 153, 6.0], [7705, 2, 46, 5.39], [1413, 15, 55, 3.77], [2054, 3, 126, 2.85], [7706, 2, 46, 5.39], [10574, 3, 362, 5.43], [2423, 80, 169, 3.13], [3, 2, 87, 4.73], [412, 1, 77, 3.63], [12720, 2, 205, 4.24], [10149, 3, 801, 4.21], [74, 1, 183, 4.71], [12343, 1, 566, 4.59], [346, 3, 566, 2.39], [1339, 3, 461, 1.67], [6497, 1, 33, 3.13], [346, 1, 142, 2.24], [418, 2, 129, 2.73], [13928, 1, 43, 4.47], [411, 2, 85, 3.53], [13034, 3, 508, 4.57], [18964, 1, 49, 3.09], [13028, 3, 125, 4.24], [11089, 1, 159, 2.38], [10993, 2, 14, 3.78], [413, 1, 78, 4.8], [13260, 29, 53, 4.53]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 6, 0.87], [141, 2, 4, 0.2], [589, 2, 5, 0.2], [2778, 2, 4, 0.2], [6936, 2, 5, 0.44], [2327, 2, 5, 0.64], [11681, 2, 10, 0.85], [362, 2, 4, 0.56], [8648, 2, 4, 1.08], [8650, 2, 4, 1.58], [305, 2, 4, 1.0], [326, 2, 4, 0.97], [205, 2, 4, 0.46], [2328, 2, 4, 0.39], [1446, 2, 4, 0.2], [2049, 3, 6, 0.21], [130, 1, 4, 0.2], [2775, 2, 4, 0.2], [361, 2, 5, 0.4], [8853, 2, 5, 0.94], [593, 2, 6, 0.2], [143, 2, 5, 0.51], [140, 2, 4, 0.39], [3840, 1, 4, 0.5], [523, 2, 5, 0.54], [7004, 1, 4, 0.39], [413, 1, 4, 0.66], [21793, 1, 4, 1.65], [12350, 1, 4, 0.19], [1124, 2, 4, 0.2], [151, 1, 5, 0.37], [7036, 1, 4, 1.31], [990, 2, 5, 0.2], [5165, 1, 4, 2.3], [12349, 1, 4, 1.05], [145, 2, 4, 1.39], [201, 3, 6, 0.42], [248, 1, 4, 0.2], [8089, 1, 4, 1.36], [6952, 1, 4, 1.04], [6097, 80, 4, 2.88], [2050, 3, 4, 1.21], [2055, 3, 5, 0.71], [345, 3, 6, 0.2], [144, 2, 4, 0.49], [10993, 2, 4, 0.41], [7084, 3, 4, 3.17], [11770, 1, 4, 0.47], [2057, 3, 5, 0.49], [3891, 1, 4, 0.25], [2912, 1, 4, 0.86], [5165, 2, 7, 2.22], [998, 2, 4, 0.23], [3893, 1, 4, 0.63], [9372, 1, 4, 0.98], [12870, 1, 4, 0.47], [12343, 1, 4, 1.05], [7885, 4, 4, 0.99], [2424, 80, 4, 2.15], [12351, 1, 4, 1.05], [6098, 80, 4, 1.89], [6097, 29, 4, 2.41], [20927, 1, 4, 0.36], [10574, 3, 5, 1.59], [6158, 2, 5, 0.84], [3334, 5, 4, 0.38], [12345, 1, 4, 1.05], [11089, 1, 4, 0.37], [10149, 3, 15, 1.48], [1492, 1, 4, 0.56], [2912, 2, 5, 0.7], [3889, 1, 4, 0.63], [4032, 29, 4, 0.63], [12304, 1, 4, 1.07], [972, 3, 4, 1.01], [3576, 25, 4, 0.92], [1700, 2, 4, 0.49], [411, 2, 4, 0.93], [13034, 3, 4, 1.07], [2331, 1, 4, 1.01], [11583, 29, 5, 0.2], [229, 1, 4, 2.07], [11426, 25, 4, 0.51], [5151, 2, 4, 0.93], [11490, 1, 4, 0.93], [995, 2, 4, 0.62], [3, 2, 4, 0.32], [8677, 3, 6, 1.21], [12764, 2, 5, 0.43], [2160, 68, 4, 1.02], [3478, 2, 4, 1.12], [13893, 2, 4, 1.32], [2805, 137, 4, 0.83], [3575, 25, 4, 0.6], [13023, 3, 5, 1.52], [13280, 1, 4, 1.09], [5812, 3, 5, 2.0], [6494, 1, 4, 1.48], [3577, 25, 4, 0.45], [11814, 1, 4, 0.48], [4253, 1, 4, 1.41], [11813, 1, 4, 1.53], [2438, 2, 5, 1.68], [75, 2, 4, 0.36], [9289, 29, 4, 1.08], [11404, 2, 4, 0.43], [9971, 2, 4, 0.92], [957, 2, 5, 0.91], [9967, 2, 4, 0.92], [1413, 15, 4, 0.45], [11150, 2, 5, 0.44], [22317, 3, 4, 0.44], [8283, 2, 5, 0.74], [9069, 1, 4, 0.8], [4586, 10, 11, 0.8], [5584, 3, 4, 1.38], [2878, 1, 5, 0.44], [114, 3, 4, 1.53], [9491, 21, 8, 1.43], [21697, 3, 4, 0.44], [11812, 1, 4, 0.41], [9964, 2, 4, 0.92], [9965, 2, 4, 0.92], [4076, 3, 4, 1.42], [10407, 10, 7, 1.22], [10609, 1, 4, 1.55], [336, 15, 4, 0.39], [1163, 3, 4, 1.45], [8926, 1, 4, 2.31], [12647, 1, 4, 0.75], [11739, 2, 4, 0.39], [13249, 29, 4, 1.16], [3495, 3, 10, 0.82], [11687, 2, 4, 0.38], [7324, 1, 4, 0.56], [11425, 25, 4, 0.51], [8285, 2, 4, 0.52], [6935, 2, 202, 5.27], [141, 2, 114, 3.01], [589, 2, 89, 3.17], [2778, 2, 146, 2.77], [6936, 2, 202, 5.81], [2327, 2, 111, 3.3], [11681, 2, 220, 6.0], [362, 2, 111, 3.45], [8648, 2, 170, 5.97], [8650, 2, 179, 6.0], [326, 2, 71, 3.85], [2328, 2, 119, 4.01], [1446, 2, 68, 3.34], [2049, 3, 272, 2.27], [2775, 2, 146, 2.77], [361, 2, 123, 3.53], [8853, 2, 222, 6.0], [593, 2, 53, 3.38], [143, 2, 117, 3.68], [140, 2, 84, 2.91], [3840, 1, 40, 1.79], [523, 2, 123, 3.41], [7004, 1, 19, 2.03], [413, 1, 80, 2.72], [21793, 1, 220, 4.63], [12350, 1, 488, 3.41], [1124, 2, 147, 3.88], [7036, 1, 119, 4.05], [5165, 1, 36, 5.87], [12349, 1, 575, 5.14], [145, 2, 35, 3.51], [248, 1, 13, 3.27], [8089, 1, 65, 4.06], [6952, 1, 148, 5.46], [6097, 80, 54, 6.0], [2055, 3, 166, 3.43], [345, 3, 238, 4.1], [144, 2, 138, 2.39], [10993, 2, 19, 1.89], [11770, 1, 208, 2.35], [2057, 3, 166, 3.43], [3891, 1, 92, 3.38], [2912, 1, 43, 3.1], [5165, 2, 347, 5.64], [998, 2, 191, 4.68], [3893, 1, 116, 2.66], [9372, 1, 215, 4.91], [12870, 1, 129, 3.03], [12343, 1, 575, 5.14], [2424, 80, 154, 5.59], [12351, 1, 575, 5.14], [6098, 80, 59, 5.09], [6097, 29, 27, 6.0], [20927, 1, 19, 1.99], [10574, 3, 400, 4.31], [6158, 2, 207, 3.96], [3334, 5, 168, 3.45], [12345, 1, 575, 5.14], [11089, 1, 125, 3.59], [10149, 3, 809, 4.06], [1492, 1, 35, 2.53], [2912, 2, 348, 2.71], [3889, 1, 116, 2.66]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 7, 0.97], [305, 2, 4, 0.75], [6935, 2, 8, 1.2], [2049, 3, 10, 0.21], [141, 2, 4, 0.39], [205, 2, 4, 0.2], [326, 2, 4, 0.47], [130, 1, 4, 0.5], [144, 2, 4, 0.5], [589, 2, 6, 0.2], [151, 1, 4, 0.46], [362, 2, 4, 1.32], [1776, 1, 5, 1.48], [146, 2, 4, 0.58], [145, 2, 4, 0.38], [206, 2, 4, 0.2], [143, 2, 4, 0.58], [2328, 2, 5, 0.55], [8648, 2, 5, 0.77], [1777, 1, 5, 0.93], [6936, 2, 6, 1.17], [5151, 2, 4, 1.55], [8650, 2, 5, 1.15], [2778, 2, 4, 0.2], [22247, 2, 4, 1.07], [8677, 3, 5, 2.06], [10, 2, 6, 0.2], [76, 2, 4, 1.11], [10149, 3, 17, 1.32], [8649, 2, 4, 1.15], [2050, 3, 5, 0.77], [412, 1, 4, 0.91], [13028, 3, 4, 0.5], [361, 2, 4, 0.74], [413, 1, 4, 0.85], [7004, 1, 4, 0.4], [11404, 2, 4, 0.48], [411, 2, 4, 0.2], [410, 1, 4, 0.2], [3478, 2, 4, 0.78], [6158, 2, 6, 0.2], [308, 1, 4, 0.72], [167, 3, 4, 1.35], [5081, 2, 6, 0.2], [7005, 1, 4, 0.4], [3495, 3, 17, 1.31], [45, 2, 4, 1.12], [7036, 1, 4, 1.64], [5812, 3, 5, 2.5], [9827, 3, 4, 0.2], [94, 4, 4, 0.51], [3893, 1, 4, 0.53], [168, 3, 5, 0.29], [3889, 1, 4, 0.53], [10574, 3, 5, 1.17], [3891, 1, 4, 0.53], [2049, 1, 4, 0.4], [13280, 1, 4, 1.23], [12870, 1, 4, 2.83], [2336, 3, 6, 0.5], [335, 3, 10, 1.08], [1504, 2, 6, 0.2], [6097, 29, 4, 2.36], [6097, 80, 4, 2.86], [11737, 2, 4, 1.04], [95, 3, 15, 0.19], [998, 2, 4, 1.27], [346, 1, 4, 0.56], [20927, 1, 4, 0.61], [79, 1, 4, 0.2], [6098, 29, 4, 2.02], [22316, 3, 5, 0.49], [9069, 1, 4, 1.09], [6098, 80, 4, 3.02], [1070, 7, 10, 0.43], [14017, 3, 4, 0.67], [8898, 3, 5, 2.17], [9760, 29, 4, 0.43], [346, 3, 5, 0.5], [997, 2, 4, 1.29], [20498, 1, 5, 0.55], [7887, 4, 4, 0.37], [13034, 3, 8, 0.77], [1622, 1, 5, 0.2], [8945, 3, 5, 1.31], [13260, 29, 4, 0.73], [22554, 10, 9, 0.48], [336, 15, 4, 0.2], [7567, 3, 4, 1.62], [5946, 1, 4, 0.53], [5811, 3, 4, 1.68], [5813, 3, 5, 1.08], [5513, 2, 4, 0.66], [22317, 3, 6, 0.2], [11085, 2, 6, 0.45], [5086, 1, 6, 0.2], [5209, 3, 4, 0.54], [12924, 1, 4, 0.2], [12350, 1, 4, 2.07], [20498, 3, 6, 0.6], [995, 2, 4, 1.31], [229, 1, 4, 2.57], [974, 3, 4, 0.88], [996, 2, 4, 0.74], [972, 3, 6, 0.35], [33, 1, 4, 0.74], [9691, 1, 4, 1.91], [8557, 3, 4, 0.2], [35, 1, 4, 1.05], [110, 4, 4, 0.44], [3049, 3, 4, 1.98], [1080, 3, 4, 0.3], [20486, 3, 6, 0.49], [1703, 2, 4, 1.38], [13023, 3, 5, 1.74], [2424, 80, 4, 1.45], [4076, 3, 4, 3.19], [5584, 3, 4, 0.5], [39, 1, 4, 1.05], [8104, 1, 4, 0.39], [14018, 3, 4, 0.5], [3900, 3, 4, 1.18], [952, 4, 4, 1.94], [215, 4, 4, 3.57], [11510, 3, 5, 0.48], [9081, 3, 9, 0.28], [9613, 1, 4, 0.45], [34, 1, 4, 1.05], [20486, 1, 4, 0.51], [114, 3, 4, 0.48], [972, 1, 4, 0.98], [1414, 15, 4, 0.2], [2854, 21, 10, 0.47], [20969, 3, 4, 1.28], [6497, 1, 5, 1.0], [3047, 3, 4, 1.05], [8672, 2, 190, 5.07], [305, 2, 98, 3.64], [6935, 2, 246, 4.24], [2049, 3, 432, 2.52], [141, 2, 105, 2.87], [205, 2, 64, 2.48], [326, 2, 62, 3.13], [130, 1, 20, 2.4], [144, 2, 128, 2.07], [589, 2, 61, 2.08], [151, 1, 46, 2.99], [362, 2, 122, 3.65], [1776, 1, 85, 4.51], [146, 2, 102, 4.05], [145, 2, 130, 2.51], [206, 2, 79, 2.86], [143, 2, 100, 3.21], [2328, 2, 102, 3.16], [8648, 2, 150, 4.67], [1777, 1, 85, 3.88], [6936, 2, 190, 4.62], [5151, 2, 17, 4.09], [8650, 2, 150, 5.32], [2778, 2, 105, 3.21], [22247, 2, 246, 3.76], [8677, 3, 197, 5.23], [10, 2, 91, 3.16], [76, 2, 73, 4.44], [10149, 3, 575, 5.41], [8649, 2, 150, 5.01], [2050, 3, 318, 3.54], [412, 1, 57, 3.82], [13028, 3, 99, 3.08], [361, 2, 134, 2.53], [413, 1, 58, 3.3], [7004, 1, 54, 2.88], [11404, 2, 91, 2.3], [411, 2, 38, 3.03], [410, 1, 54, 2.83], [6158, 2, 195, 2.69], [308, 1, 146, 3.55], [5081, 2, 128, 3.15], [7005, 1, 42, 2.88], [3495, 3, 641, 4.39], [45, 2, 73, 5.82], [7036, 1, 85, 4.63], [5812, 3, 203, 6.0], [9827, 3, 59, 3.04], [94, 4, 80, 4.7], [3893, 1, 108, 2.17], [168, 3, 273, 3.61], [3889, 1, 108, 2.17], [10574, 3, 438, 3.43], [3891, 1, 108, 2.17], [2049, 1, 20, 1.88], [13280, 1, 271, 3.48], [12870, 1, 92, 6.0], [2336, 3, 456, 3.41], [335, 3, 989, 5.46], [1504, 2, 137, 2.99], [6097, 29, 23, 6.0], [6097, 80, 46, 6.0], [11737, 2, 49, 3.14], [95, 3, 752, 3.08]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 15, 2.18], [305, 2, 7, 1.49], [326, 2, 11, 1.63], [589, 2, 12, 0.67], [143, 2, 7, 1.12], [2049, 3, 15, 1.54], [130, 1, 7, 1.81], [6935, 2, 18, 3.14], [75, 2, 11, 2.11], [144, 2, 7, 1.91], [12721, 2, 10, 1.69], [145, 2, 7, 1.0], [8915, 2, 15, 0.5], [7885, 4, 7, 0.77], [146, 2, 7, 1.0], [1776, 1, 7, 1.17], [2778, 2, 11, 1.07], [206, 2, 9, 0.68], [1777, 1, 7, 1.85], [151, 1, 7, 0.71], [8648, 2, 11, 3.26], [6936, 2, 10, 2.57], [2328, 2, 9, 1.55], [5151, 2, 7, 3.02], [7886, 4, 7, 0.87], [248, 1, 7, 0.68], [2050, 3, 9, 1.03], [141, 2, 9, 1.62], [2991, 3, 7, 4.18], [74, 1, 7, 3.53], [2054, 3, 9, 1.08], [83, 2, 7, 1.12], [1446, 2, 7, 0.5], [1492, 1, 7, 1.85], [7004, 1, 7, 0.71], [2055, 3, 7, 0.82], [76, 2, 9, 2.08], [8649, 2, 11, 4.24], [345, 3, 9, 0.87], [11404, 2, 7, 0.67], [7084, 3, 9, 5.0], [3889, 1, 7, 0.8], [10825, 21, 13, 1.79], [61, 3, 7, 1.02], [10149, 3, 21, 1.67], [7036, 1, 7, 2.24], [21793, 1, 7, 3.94], [12870, 1, 9, 5.0], [33, 1, 9, 2.05], [94, 4, 9, 1.6], [5081, 2, 7, 1.33], [3478, 2, 9, 2.13], [10, 2, 7, 1.31], [11681, 2, 11, 3.47], [167, 3, 7, 2.54], [411, 2, 7, 0.71], [9827, 3, 7, 0.5], [308, 1, 7, 4.97], [1654, 2, 7, 1.54], [3891, 1, 7, 2.63], [1504, 2, 7, 2.8], [8677, 3, 9, 1.26], [201, 3, 9, 0.87], [168, 3, 9, 3.03], [3893, 1, 7, 2.63], [84, 2, 7, 0.86], [79, 1, 7, 1.16], [35, 1, 7, 2.45], [2336, 3, 9, 1.96], [13280, 1, 7, 2.96], [23, 1, 7, 1.29], [1490, 1, 7, 0.67], [9760, 29, 7, 1.04], [1243, 2, 7, 1.02], [6158, 2, 8, 0.86], [412, 1, 7, 2.69], [45, 2, 7, 2.72], [361, 2, 7, 2.25], [346, 1, 9, 1.08], [20927, 1, 7, 0.94], [1767, 25, 7, 1.14], [25, 1, 7, 1.46], [12225, 1, 7, 1.7], [9069, 1, 7, 0.73], [413, 1, 6, 2.06], [21269, 3, 7, 3.75], [3495, 3, 22, 2.26], [346, 3, 7, 0.98], [490, 1, 7, 1.52], [997, 2, 9, 2.24], [34, 1, 7, 1.69], [1766, 25, 9, 1.08], [8898, 3, 7, 2.78], [5946, 1, 7, 2.48], [9691, 1, 7, 3.41], [1070, 7, 15, 0.85], [1519, 3, 22, 0.73], [9372, 1, 7, 3.85], [14017, 3, 7, 1.6], [11954, 1, 7, 0.87], [20498, 1, 7, 1.3], [38, 1, 7, 1.9], [974, 3, 7, 2.64], [14037, 3, 11, 0.74], [22317, 3, 9, 0.98], [5584, 3, 7, 3.74], [972, 3, 8, 2.02], [1091, 1, 7, 1.77], [7567, 3, 7, 2.33], [20498, 3, 8, 1.9], [110, 4, 7, 0.68], [9828, 3, 9, 0.76], [8945, 3, 8, 1.04], [5813, 3, 9, 3.74], [2991, 1, 7, 3.22], [82, 2, 7, 1.0], [3048, 3, 7, 4.18], [39, 1, 7, 1.14], [1080, 3, 11, 1.59], [1414, 15, 9, 0.72], [24, 1, 7, 2.0], [13034, 3, 8, 2.65], [336, 15, 9, 0.68], [1767, 2, 9, 1.14], [202, 2, 7, 1.73], [13260, 29, 7, 2.28], [10780, 10, 7, 3.58], [5513, 2, 7, 1.1], [9082, 3, 24, 2.75], [11811, 1, 7, 3.28], [4203, 1, 9, 1.06], [2878, 1, 7, 2.34], [14018, 3, 7, 1.64], [8635, 3, 9, 0.8], [3900, 3, 7, 0.9], [8104, 1, 7, 0.85], [2336, 3, 588, 3.23], [13280, 1, 320, 4.24], [23, 1, 96, 3.54], [1490, 1, 43, 2.98], [9760, 29, 73, 2.31], [1243, 2, 99, 2.29], [6158, 2, 225, 3.16], [412, 1, 71, 4.36], [45, 2, 97, 4.53], [361, 2, 157, 3.51], [346, 1, 112, 2.88], [20927, 1, 40, 1.95], [1767, 25, 148, 3.4], [25, 1, 96, 3.71], [9069, 1, 123, 1.99], [413, 1, 73, 3.86], [21269, 3, 213, 5.55], [3495, 3, 827, 4.56], [346, 3, 448, 2.79], [997, 2, 174, 4.04], [34, 1, 81, 3.7], [1766, 25, 161, 3.33], [8898, 3, 247, 5.08], [5946, 1, 107, 3.78], [1070, 7, 510, 3.13], [1519, 3, 558, 1.46], [9372, 1, 165, 5.15], [14017, 3, 168, 4.21], [11954, 1, 174, 3.18], [20498, 1, 84, 4.11], [38, 1, 81, 3.7], [974, 3, 127, 3.95], [22317, 3, 229, 2.78], [5584, 3, 169, 5.54], [972, 3, 510, 3.45], [7567, 3, 71, 3.6], [20498, 3, 425, 3.7], [110, 4, 77, 2.1], [9828, 3, 64, 2.69], [8945, 3, 603, 2.29], [5813, 3, 428, 5.01], [2991, 1, 30, 4.52], [82, 2, 20, 1.76], [3048, 3, 198, 5.48], [39, 1, 81, 2.94], [1080, 3, 97, 3.39], [1414, 15, 85, 2.47], [24, 1, 57, 3.8], [13034, 3, 428, 3.96], [336, 15, 57, 1.69], [1767, 2, 25, 2.94], [202, 2, 73, 3.0], [13260, 29, 53, 3.55], [10780, 10, 278, 5.4], [5513, 2, 80, 2.37], [9082, 3, 1772, 4.58], [11811, 1, 328, 4.58], [4203, 1, 35, 2.86], [2878, 1, 58, 3.64], [14018, 3, 198, 2.9], [3900, 3, 45, 2.17], [8104, 1, 150, 2.65]]</t>
+  </si>
+  <si>
+    <t>[[2327, 2, 7, 1.0], [305, 2, 9, 1.32], [6935, 2, 11, 4.09], [2778, 2, 9, 0.93], [589, 2, 10, 0.87], [8915, 2, 8, 1.31], [144, 2, 7, 1.04], [143, 2, 7, 0.85], [2328, 2, 11, 1.39], [6936, 2, 7, 3.27], [205, 2, 7, 0.74], [8648, 2, 11, 3.48], [2775, 2, 11, 0.61], [8650, 2, 7, 2.95], [145, 2, 7, 0.96], [146, 2, 7, 2.81], [326, 2, 7, 2.24], [7036, 1, 11, 3.63], [2049, 3, 12, 0.71], [88, 10, 20, 2.1], [2776, 2, 11, 0.61], [141, 2, 7, 0.72], [7004, 1, 11, 2.57], [1446, 2, 7, 1.43], [206, 2, 7, 0.74], [9760, 29, 7, 1.24], [362, 2, 7, 1.0], [2912, 1, 7, 3.11], [2055, 3, 7, 1.08], [142, 2, 7, 1.99], [3893, 1, 7, 0.71], [12870, 1, 9, 3.23], [5165, 1, 7, 4.43], [9372, 1, 7, 3.08], [7886, 4, 7, 0.8], [7084, 3, 7, 2.06], [3889, 1, 7, 1.38], [2054, 3, 7, 1.3], [2050, 3, 7, 1.57], [1622, 1, 7, 0.5], [10, 2, 7, 1.39], [21793, 1, 7, 1.02], [7573, 1, 16, 4.79], [3891, 1, 7, 0.76], [5208, 3, 11, 0.79], [75, 2, 7, 2.43], [10149, 3, 21, 3.07], [20927, 1, 9, 1.93], [997, 2, 9, 1.93], [3, 2, 9, 1.33], [11234, 2, 9, 1.3], [5165, 2, 8, 4.03], [12721, 2, 7, 2.81], [998, 2, 9, 1.56], [1886, 2, 9, 0.86], [94, 4, 9, 1.6], [346, 3, 9, 0.82], [35, 1, 7, 3.45], [22247, 2, 7, 2.52], [9491, 21, 32, 0.95], [996, 2, 9, 2.63], [955, 2, 7, 1.04], [83, 2, 9, 1.33], [229, 1, 7, 2.98], [33, 1, 7, 2.75], [7887, 4, 9, 2.4], [6158, 2, 7, 1.56], [2912, 2, 12, 3.18], [76, 2, 7, 1.69], [413, 1, 7, 3.62], [13928, 1, 7, 2.31], [2424, 80, 7, 2.78], [2805, 137, 7, 2.56], [5209, 3, 14, 2.79], [5076, 1, 7, 1.87], [346, 1, 7, 0.83], [8676, 2, 7, 3.15], [38, 1, 7, 3.14], [34, 1, 9, 2.65], [418, 2, 7, 1.04], [84, 2, 7, 2.7], [8104, 1, 7, 2.1], [12212, 29, 7, 1.4], [3495, 3, 18, 1.61], [11952, 1, 7, 0.83], [1414, 15, 7, 0.81], [39, 1, 7, 3.08], [11490, 1, 7, 1.85], [3048, 3, 7, 2.21], [11770, 1, 7, 1.65], [2424, 29, 7, 2.78], [411, 2, 7, 1.29], [10407, 10, 12, 3.71], [1703, 2, 7, 2.56], [9691, 1, 7, 2.35], [202, 2, 7, 1.68], [13928, 2, 7, 2.7], [11772, 1, 7, 2.43], [11953, 1, 7, 0.98], [5584, 3, 7, 5.0], [22316, 3, 7, 1.16], [23961, 3, 7, 4.58], [7567, 3, 7, 3.04], [13893, 2, 7, 2.25], [12764, 2, 10, 1.76], [13023, 3, 10, 1.41], [10410, 10, 15, 3.59], [1519, 3, 16, 0.62], [74, 1, 7, 5.0], [21269, 3, 7, 3.07], [1274, 1, 7, 1.26], [5164, 1, 7, 3.75], [410, 1, 7, 1.96], [2331, 1, 7, 1.23], [4253, 1, 7, 1.16], [1523, 1, 7, 1.16], [10408, 10, 8, 4.11], [1492, 1, 7, 0.87], [2438, 2, 8, 3.7], [12229, 2, 7, 1.44], [3430, 15, 7, 2.79], [6097, 80, 7, 2.43], [13034, 3, 7, 3.12], [3047, 3, 7, 3.16], [6805, 1, 7, 0.97], [8674, 2, 7, 2.33], [71, 15, 7, 0.67], [1243, 2, 7, 2.73], [21059, 1, 7, 3.09], [10780, 10, 7, 4.06], [11116, 1, 7, 1.08], [2436, 4, 7, 1.58], [6097, 29, 7, 1.52], [11812, 1, 7, 0.89], [1080, 3, 7, 2.78], [24257, 1, 7, 1.08], [3429, 15, 7, 0.71], [76, 2, 78, 3.73], [413, 1, 49, 4.92], [13928, 1, 34, 3.92], [2424, 80, 156, 4.21], [2805, 137, 151, 4.69], [5076, 1, 92, 4.0], [346, 1, 130, 2.96], [8676, 2, 263, 4.57], [38, 1, 26, 4.31], [34, 1, 77, 4.19], [418, 2, 131, 2.46], [84, 2, 51, 4.29], [8104, 1, 145, 4.33], [12212, 29, 101, 3.03], [3495, 3, 889, 3.02], [11952, 1, 185, 2.25], [1414, 15, 46, 2.03], [39, 1, 26, 4.25], [3048, 3, 249, 3.63], [11770, 1, 180, 3.78], [2424, 29, 31, 4.2], [411, 2, 50, 2.51], [1703, 2, 136, 3.98], [202, 2, 17, 2.49], [13928, 2, 21, 4.12], [11772, 1, 201, 3.85], [11953, 1, 185, 2.4], [5584, 3, 169, 6.0], [22316, 3, 291, 2.58], [23961, 3, 245, 6.0], [7567, 3, 16, 4.21], [13893, 2, 252, 3.67], [12764, 2, 621, 3.87], [13023, 3, 501, 3.53], [1519, 3, 382, 1.41], [74, 1, 164, 6.0], [21269, 3, 244, 4.71], [1274, 1, 76, 2.68], [5164, 1, 43, 5.17], [2331, 1, 109, 2.65], [4253, 1, 143, 3.29], [1523, 1, 43, 2.58], [1492, 1, 32, 3.0], [2438, 2, 522, 5.34], [12229, 2, 128, 3.07], [3430, 15, 24, 3.96], [6097, 80, 57, 3.85], [13034, 3, 491, 4.54], [3047, 3, 225, 4.59], [6805, 1, 379, 3.09], [8674, 2, 263, 3.76], [1243, 2, 82, 4.36], [21059, 1, 299, 4.51], [10780, 10, 312, 5.49], [11116, 1, 18, 1.89], [2436, 4, 40, 3.21], [6097, 29, 32, 2.94], [11812, 1, 187, 2.85], [1080, 3, 117, 4.2], [24257, 1, 49, 2.16], [3429, 15, 12, 1.52]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 10, 2.95], [11685, 2, 7, 3.6], [326, 2, 7, 2.44], [8648, 2, 9, 2.71], [589, 2, 8, 0.61], [2327, 2, 7, 0.98], [205, 2, 9, 0.93], [593, 2, 11, 1.26], [11681, 2, 9, 3.34], [143, 2, 9, 1.44], [305, 2, 7, 0.98], [8915, 2, 8, 0.74], [8650, 2, 7, 1.85], [141, 2, 7, 1.58], [6936, 2, 11, 4.58], [2778, 2, 7, 1.57], [146, 2, 9, 2.65], [88, 10, 18, 0.73], [7004, 1, 7, 1.94], [7036, 1, 7, 3.33], [145, 2, 9, 2.06], [1446, 2, 11, 1.04], [8853, 2, 7, 2.37], [362, 2, 7, 0.96], [2055, 3, 7, 4.41], [417, 2, 7, 1.56], [10993, 2, 7, 1.37], [11737, 2, 7, 1.76], [3893, 1, 9, 1.0], [75, 2, 7, 2.23], [2050, 3, 7, 3.31], [159, 3, 12, 0.56], [3840, 1, 7, 0.75], [523, 2, 9, 1.31], [12870, 1, 7, 3.69], [3889, 1, 7, 1.02], [2057, 3, 7, 4.02], [7084, 3, 7, 1.77], [13280, 1, 7, 2.32], [20927, 1, 7, 1.82], [3, 2, 7, 1.37], [7005, 1, 7, 1.42], [997, 2, 7, 2.0], [3982, 3, 17, 2.85], [9760, 29, 9, 0.86], [10, 2, 7, 1.29], [3891, 1, 7, 1.02], [98, 11, 16, 0.96], [998, 2, 7, 1.33], [11739, 2, 7, 1.41], [6158, 2, 9, 1.48], [7885, 4, 9, 0.7], [84, 2, 7, 1.73], [5165, 2, 8, 3.91], [346, 3, 7, 1.05], [9372, 1, 7, 2.6], [3980, 4, 7, 2.36], [5165, 1, 7, 4.43], [411, 2, 7, 2.14], [10388, 2, 7, 3.52], [2912, 1, 7, 3.11], [9491, 21, 20, 0.87], [214, 3, 15, 0.69], [346, 1, 7, 0.91], [3981, 3, 22, 2.14], [1492, 1, 7, 1.48], [22316, 3, 7, 0.98], [10386, 2, 7, 1.91], [33, 1, 7, 4.53], [995, 2, 7, 2.23], [13928, 1, 7, 2.9], [418, 2, 7, 0.98], [22247, 2, 7, 3.08], [308, 1, 7, 3.52], [13893, 2, 7, 4.76], [336, 15, 7, 1.93], [7886, 4, 9, 0.94], [7567, 3, 7, 2.33], [2912, 2, 8, 4.0], [35, 1, 7, 3.52], [10631, 2, 7, 3.81], [11490, 1, 7, 2.02], [229, 1, 7, 2.31], [159, 1, 7, 0.98], [11953, 1, 7, 1.4], [83, 2, 7, 0.94], [11770, 1, 7, 1.35], [13283, 1, 7, 2.96], [22317, 3, 9, 1.92], [10780, 10, 7, 5.0], [10407, 10, 10, 3.8], [9691, 1, 7, 2.44], [13286, 1, 7, 1.85], [10149, 3, 21, 3.14], [10410, 10, 10, 2.33], [12271, 2, 7, 3.87], [6497, 1, 7, 0.87], [345, 3, 7, 1.94], [1413, 15, 7, 1.12], [74, 1, 7, 2.19], [8943, 3, 7, 0.73], [3478, 2, 7, 1.62], [37, 1, 7, 2.23], [9971, 2, 7, 3.45], [23611, 3, 9, 0.72], [10387, 2, 7, 1.83], [39, 1, 7, 1.04], [11085, 2, 8, 3.27], [4076, 3, 7, 2.6], [3048, 3, 7, 2.27], [2331, 1, 7, 2.86], [159, 16, 7, 0.98], [34, 1, 7, 1.79], [13281, 1, 7, 2.64], [20498, 3, 10, 2.22], [82, 2, 7, 1.37], [4001, 3, 14, 3.01], [11510, 3, 8, 2.0], [45, 2, 7, 2.96], [9, 1, 7, 0.96], [12338, 29, 7, 0.73], [9965, 2, 7, 2.62], [9964, 2, 7, 3.45], [10936, 2, 7, 3.27], [215, 4, 7, 2.81], [24257, 1, 7, 2.95], [105, 3, 7, 0.98], [1523, 1, 7, 2.08], [12764, 2, 8, 1.96], [1895, 3, 7, 1.42], [12212, 29, 7, 0.96], [12858, 1, 7, 1.41], [1080, 3, 7, 0.89], [11489, 1, 7, 0.96], [2805, 137, 8, 1.47], [8635, 3, 7, 2.91], [22316, 3, 233, 2.92], [10386, 2, 206, 3.27], [995, 2, 177, 4.17], [13928, 1, 44, 4.26], [418, 2, 135, 2.34], [22247, 2, 211, 4.44], [308, 1, 151, 4.88], [13893, 2, 255, 6.0], [336, 15, 102, 3.29], [7567, 3, 67, 3.69], [2912, 2, 304, 5.36], [10631, 2, 76, 4.85], [11490, 1, 26, 3.38], [229, 1, 62, 3.67], [159, 1, 24, 2.18], [11953, 1, 49, 2.84], [83, 2, 39, 2.23], [11770, 1, 181, 3.29], [13283, 1, 303, 4.32], [22317, 3, 257, 3.38], [10780, 10, 332, 6.0], [13286, 1, 303, 3.21], [10149, 3, 642, 4.59], [10410, 10, 1149, 3.67], [6497, 1, 36, 2.23], [345, 3, 220, 3.29], [1413, 15, 24, 2.52], [74, 1, 194, 3.54], [8943, 3, 92, 1.51], [3478, 2, 45, 2.86], [37, 1, 82, 3.58], [9971, 2, 259, 4.81], [23611, 3, 259, 2.75], [10387, 2, 206, 3.19], [39, 1, 106, 2.39], [11085, 2, 395, 4.73], [4076, 3, 148, 3.96], [3048, 3, 199, 3.72], [2331, 1, 110, 4.22], [159, 16, 48, 2.22], [34, 1, 82, 3.15], [13281, 1, 303, 4.0], [20498, 3, 430, 4.65], [82, 2, 14, 2.15], [4001, 3, 582, 4.46], [11510, 3, 563, 3.36], [45, 2, 106, 4.32], [9, 1, 33, 2.32], [12338, 29, 51, 2.09], [9965, 2, 259, 3.98], [9964, 2, 259, 4.81], [10936, 2, 127, 4.63], [215, 4, 35, 4.17], [24257, 1, 131, 4.31], [105, 3, 182, 2.92], [1523, 1, 45, 3.44], [12764, 2, 549, 3.42], [1895, 3, 225, 3.36], [12212, 29, 115, 2.32], [12858, 1, 430, 2.85], [1080, 3, 123, 2.25], [11489, 1, 104, 2.32], [2805, 137, 176, 2.83], [8635, 3, 248, 4.8]]</t>
+  </si>
+  <si>
+    <t>[[326, 2, 8, 1.03], [2049, 3, 16, 0.79], [6935, 2, 23, 3.05], [362, 2, 9, 1.81], [141, 2, 7, 1.04], [75, 2, 11, 1.95], [1776, 1, 7, 1.12], [8672, 2, 15, 1.91], [7886, 4, 7, 1.01], [2778, 2, 8, 0.56], [6936, 2, 10, 2.79], [305, 2, 7, 0.92], [593, 2, 14, 0.66], [1777, 1, 7, 2.22], [11681, 2, 10, 5.0], [8648, 2, 9, 3.21], [151, 1, 6, 0.85], [206, 2, 7, 0.71], [88, 10, 17, 1.44], [2328, 2, 7, 0.94], [83, 2, 7, 1.0], [8650, 2, 11, 3.25], [2050, 3, 7, 1.22], [5151, 2, 7, 2.7], [412, 1, 7, 2.67], [144, 2, 7, 1.93], [2991, 3, 7, 4.04], [22247, 2, 11, 3.0], [361, 2, 7, 0.94], [57, 1, 9, 0.68], [10149, 3, 25, 3.26], [2054, 3, 9, 3.5], [417, 2, 9, 1.37], [146, 2, 9, 2.18], [3478, 2, 7, 1.48], [45, 2, 7, 2.65], [143, 2, 7, 1.34], [7004, 1, 9, 0.93], [167, 3, 7, 2.5], [12721, 2, 10, 1.92], [168, 3, 7, 1.38], [2055, 3, 7, 2.83], [74, 1, 7, 2.52], [1446, 2, 7, 1.69], [346, 1, 7, 0.74], [84, 2, 7, 0.86], [7036, 1, 7, 4.25], [335, 3, 22, 3.91], [3495, 3, 21, 1.64], [5081, 2, 7, 0.84], [10, 2, 14, 3.54], [13028, 3, 7, 1.61], [8649, 2, 9, 2.97], [12870, 1, 7, 5.0], [410, 1, 7, 1.23], [11404, 2, 9, 1.56], [79, 1, 7, 0.73], [96, 11, 20, 0.84], [3889, 1, 7, 2.38], [145, 2, 7, 1.4], [5208, 3, 16, 1.06], [3893, 1, 7, 1.67], [1492, 1, 7, 1.2], [23, 1, 7, 3.33], [5812, 3, 8, 2.16], [1504, 2, 9, 0.89], [94, 4, 7, 2.54], [7005, 1, 7, 1.44], [13260, 29, 7, 1.85], [9827, 3, 7, 0.86], [411, 2, 7, 1.71], [3891, 1, 7, 1.55], [1490, 1, 7, 1.35], [25, 1, 7, 2.33], [21269, 3, 7, 4.99], [13280, 1, 7, 2.37], [998, 2, 7, 2.91], [9069, 1, 7, 3.62], [7567, 3, 7, 3.13], [5086, 1, 9, 2.04], [2878, 1, 7, 1.63], [1243, 2, 7, 1.93], [1703, 2, 7, 3.38], [9691, 1, 7, 3.66], [20927, 1, 7, 2.0], [997, 2, 7, 2.5], [5209, 3, 7, 0.67], [346, 3, 10, 1.24], [11914, 1, 9, 1.02], [5660, 2, 7, 1.94], [856, 1, 7, 0.85], [1124, 2, 11, 0.76], [5584, 3, 7, 3.61], [1070, 7, 13, 1.16], [159, 3, 12, 0.83], [8274, 3, 7, 1.68], [11811, 1, 9, 2.48], [996, 2, 7, 4.92], [1519, 3, 26, 0.68], [23961, 3, 7, 2.61], [8898, 3, 7, 5.0], [5513, 2, 7, 2.49], [22317, 3, 8, 0.9], [1091, 1, 7, 1.1], [24, 1, 7, 2.76], [952, 4, 7, 5.0], [13034, 3, 10, 3.25], [9081, 3, 12, 3.15], [12661, 1, 7, 4.54], [27, 1, 7, 2.87], [336, 15, 7, 0.8], [1413, 15, 7, 1.69], [9760, 29, 9, 0.87], [4203, 1, 7, 1.52], [10529, 29, 7, 2.85], [20498, 1, 7, 1.87], [9082, 3, 21, 1.67], [9372, 1, 7, 1.55], [1163, 3, 9, 0.86], [6097, 80, 7, 3.08], [6097, 29, 9, 2.58], [2109, 3, 18, 0.78], [82, 2, 7, 0.75], [972, 3, 8, 0.84], [995, 2, 7, 4.5], [66, 16, 7, 0.87], [2104, 3, 10, 2.99], [6098, 80, 7, 2.49], [20498, 3, 8, 1.64], [66, 1, 7, 0.89], [8635, 3, 6, 1.16], [12225, 1, 7, 1.0], [5813, 3, 7, 2.46], [10780, 10, 7, 4.2], [5946, 1, 7, 1.06], [6098, 29, 7, 2.47], [34, 1, 7, 2.02], [1504, 2, 137, 3.04], [94, 4, 107, 3.65], [13260, 29, 49, 3.0], [9827, 3, 59, 3.01], [3891, 1, 84, 3.52], [1490, 1, 34, 3.01], [25, 1, 75, 3.9], [21269, 3, 196, 6.0], [13280, 1, 271, 3.48], [998, 2, 160, 5.07], [7567, 3, 27, 3.82], [5086, 1, 123, 4.19], [2878, 1, 54, 3.29], [1243, 2, 85, 3.04], [1703, 2, 149, 4.53], [997, 2, 160, 3.61], [5209, 3, 415, 2.85], [346, 3, 423, 2.89], [11914, 1, 58, 3.67], [5660, 2, 118, 4.09], [856, 1, 30, 1.96], [1124, 2, 147, 2.57], [5584, 3, 168, 5.27], [1070, 7, 397, 2.8], [159, 3, 496, 1.88], [11811, 1, 354, 3.58], [996, 2, 185, 6.0], [1519, 3, 573, 2.82], [23961, 3, 229, 4.26], [8898, 3, 188, 6.0], [5513, 2, 67, 3.6], [22317, 3, 248, 2.56], [1091, 1, 34, 3.25], [952, 4, 49, 6.0], [13034, 3, 391, 4.65], [9081, 3, 306, 5.8], [12661, 1, 41, 5.7], [27, 1, 38, 3.89], [336, 15, 45, 2.96], [9760, 29, 57, 2.53], [4203, 1, 39, 2.68], [10529, 29, 37, 4.0], [20498, 1, 85, 2.98], [9082, 3, 1662, 3.42], [9372, 1, 197, 2.66], [6097, 80, 60, 4.19], [6097, 29, 32, 4.24], [2109, 3, 369, 2.52], [82, 2, 32, 1.67], [972, 3, 519, 1.94], [995, 2, 204, 5.61], [66, 16, 61, 2.53], [2104, 3, 261, 4.1], [6098, 80, 65, 3.6], [20498, 3, 508, 2.74], [66, 1, 33, 2.0], [12225, 1, 144, 2.11], [5813, 3, 508, 3.56], [10780, 10, 314, 5.31], [5946, 1, 108, 2.17], [6098, 29, 33, 3.58], [34, 1, 97, 3.13]]</t>
+  </si>
+  <si>
+    <t>[[589, 2, 8, 0.87], [88, 10, 20, 1.09], [8915, 2, 10, 0.81], [2327, 2, 7, 1.0], [2778, 2, 7, 0.5], [305, 2, 7, 1.32], [6935, 2, 11, 3.9], [2328, 2, 9, 1.46], [6936, 2, 7, 3.27], [326, 2, 9, 3.02], [8648, 2, 9, 4.08], [8650, 2, 9, 4.02], [1446, 2, 7, 1.82], [7004, 1, 11, 2.57], [2049, 3, 15, 0.71], [205, 2, 7, 1.24], [144, 2, 7, 2.5], [143, 2, 7, 2.77], [10, 2, 7, 2.55], [94, 4, 9, 1.6], [7036, 1, 11, 3.63], [3893, 1, 9, 0.71], [1124, 2, 7, 1.74], [146, 2, 7, 2.81], [2055, 3, 9, 0.85], [206, 2, 7, 1.24], [5208, 3, 11, 0.79], [3891, 1, 9, 0.76], [75, 2, 7, 2.89], [362, 2, 7, 2.21], [7886, 4, 7, 1.3], [12224, 1, 7, 0.89], [3889, 1, 7, 1.88], [21793, 1, 7, 1.02], [2054, 3, 9, 1.43], [3980, 4, 8, 2.39], [7005, 1, 7, 2.08], [7084, 3, 7, 3.02], [12870, 1, 7, 4.2], [10149, 3, 21, 3.04], [2050, 3, 9, 1.11], [145, 2, 7, 2.89], [8672, 2, 11, 3.11], [2912, 1, 7, 3.04], [5165, 1, 7, 4.43], [998, 2, 7, 1.5], [20927, 1, 7, 3.39], [9760, 29, 7, 0.97], [997, 2, 7, 1.64], [1886, 2, 7, 1.19], [2436, 4, 7, 1.08], [7887, 4, 7, 2.37], [3, 2, 9, 1.33], [2424, 80, 7, 2.78], [6158, 2, 7, 1.56], [229, 1, 7, 2.02], [142, 2, 7, 0.69], [3495, 3, 14, 1.61], [955, 2, 7, 1.04], [346, 3, 7, 0.92], [5076, 1, 7, 2.01], [74, 1, 7, 5.0], [5165, 2, 8, 4.03], [11953, 1, 7, 0.98], [11954, 1, 7, 0.87], [11770, 1, 7, 0.96], [996, 2, 7, 1.42], [12721, 2, 7, 1.45], [9491, 21, 32, 0.95], [22316, 3, 7, 1.16], [1492, 1, 7, 0.97], [9372, 1, 7, 3.08], [11772, 1, 9, 0.76], [7573, 1, 16, 4.79], [2912, 2, 12, 3.97], [2423, 80, 9, 3.29], [5584, 3, 7, 5.0], [6497, 1, 7, 0.94], [2438, 2, 8, 3.77], [12229, 2, 7, 0.94], [3975, 4, 7, 2.98], [346, 1, 7, 0.71], [5209, 3, 9, 1.29], [5434, 1, 7, 2.56], [9082, 3, 33, 3.08], [823, 1, 7, 2.33], [10407, 10, 12, 3.27], [12764, 2, 23, 1.61], [4253, 1, 7, 1.04], [1622, 1, 9, 0.75], [11812, 1, 7, 0.84], [6496, 1, 7, 0.71], [2424, 29, 7, 2.78], [10388, 2, 7, 4.03], [5946, 1, 7, 1.62], [3900, 3, 7, 3.48], [8676, 2, 7, 3.15], [1339, 3, 16, 0.72], [1703, 2, 7, 1.94], [11490, 1, 7, 0.75], [2805, 137, 7, 2.56], [24257, 1, 7, 0.92], [13893, 2, 7, 2.25], [6097, 80, 7, 1.56], [37, 1, 7, 2.96], [6805, 1, 9, 0.97], [7567, 3, 7, 3.04], [22247, 2, 7, 2.52], [1414, 15, 7, 0.81], [9784, 1, 7, 2.75], [8635, 3, 7, 2.64], [11814, 1, 7, 0.92], [38, 1, 7, 2.23], [35, 1, 7, 2.96], [95, 3, 27, 0.73], [1274, 1, 7, 1.26], [23611, 3, 8, 0.74], [10386, 2, 7, 3.88], [1895, 3, 7, 4.16], [8104, 1, 7, 2.66], [788, 2, 7, 1.08], [12212, 29, 7, 0.9], [413, 1, 7, 1.27], [3979, 3, 13, 1.25], [8283, 2, 8, 1.19], [114, 3, 7, 2.95], [10780, 10, 7, 4.06], [12979, 25, 12, 1.36], [8274, 3, 7, 2.19], [76, 2, 7, 0.9], [8659, 1, 7, 1.64], [9065, 2, 7, 1.62], [12501, 1, 7, 2.39], [440, 3, 7, 2.41], [4232, 80, 7, 3.58], [418, 2, 7, 1.04], [19931, 1, 7, 2.43], [83, 2, 7, 0.85], [11772, 1, 155, 3.47], [7573, 1, 261, 6.0], [2912, 2, 317, 5.4], [2423, 80, 129, 5.92], [5584, 3, 217, 6.0], [6497, 1, 35, 2.36], [2438, 2, 522, 5.34], [12229, 2, 141, 2.36], [3975, 4, 403, 4.61], [346, 1, 142, 2.13], [5209, 3, 130, 2.1], [9082, 3, 2259, 4.5], [823, 1, 34, 4.46], [10407, 10, 415, 5.88], [12764, 2, 520, 3.92], [4253, 1, 121, 3.63], [1622, 1, 25, 3.47], [11812, 1, 167, 3.48], [6496, 1, 36, 2.13], [2424, 29, 31, 4.2], [10388, 2, 200, 5.45], [5946, 1, 114, 3.04], [8676, 2, 263, 4.57], [1339, 3, 607, 1.79], [1703, 2, 150, 3.36], [11490, 1, 100, 2.17], [2805, 137, 166, 3.98], [24257, 1, 55, 2.4], [13893, 2, 252, 3.67], [6097, 80, 63, 2.98], [37, 1, 26, 4.35], [6805, 1, 379, 3.09], [7567, 3, 16, 4.21], [22247, 2, 262, 3.94], [1414, 15, 46, 2.03], [9784, 1, 66, 4.18], [11814, 1, 207, 2.34], [38, 1, 93, 3.65], [35, 1, 26, 4.3], [95, 3, 943, 2.96], [1274, 1, 69, 3.39], [23611, 3, 323, 2.17], [10386, 2, 200, 5.3], [1895, 3, 250, 6.0], [8104, 1, 71, 3.74], [12212, 29, 111, 2.32], [413, 1, 79, 2.69], [3979, 3, 681, 2.89], [8283, 2, 437, 2.61], [114, 3, 56, 4.15], [10780, 10, 328, 5.49], [12979, 25, 606, 2.79], [76, 2, 101, 2.32], [8659, 1, 101, 3.77], [9065, 2, 277, 3.04], [12501, 1, 274, 3.82], [440, 3, 45, 3.57], [4232, 80, 137, 5.0], [418, 2, 131, 2.46], [19931, 1, 376, 3.85], [83, 2, 19, 1.93]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 10, 2.95], [305, 2, 7, 0.98], [2778, 2, 9, 1.07], [205, 2, 9, 0.98], [6936, 2, 9, 3.69], [616, 2, 7, 0.87], [88, 10, 14, 0.73], [144, 2, 7, 2.72], [8648, 2, 9, 2.71], [8915, 2, 8, 0.74], [326, 2, 7, 1.94], [589, 2, 8, 0.61], [11681, 2, 9, 3.84], [7036, 1, 7, 2.37], [8650, 2, 9, 2.48], [2327, 2, 7, 0.98], [593, 2, 11, 1.29], [3893, 1, 7, 1.28], [141, 2, 7, 2.08], [7004, 1, 7, 1.94], [3840, 1, 7, 0.75], [3891, 1, 7, 1.02], [2050, 3, 7, 3.31], [146, 2, 7, 2.56], [3889, 1, 7, 1.02], [2055, 3, 7, 3.41], [143, 2, 7, 1.48], [3980, 4, 7, 2.36], [10, 2, 7, 1.29], [7885, 4, 7, 1.27], [8672, 2, 11, 2.68], [2054, 3, 7, 3.66], [7886, 4, 7, 1.73], [12870, 1, 7, 4.21], [2057, 3, 6, 3.52], [5165, 1, 7, 4.43], [3975, 4, 7, 2.49], [159, 3, 8, 1.02], [7084, 3, 7, 1.94], [145, 2, 7, 2.48], [523, 2, 7, 1.98], [21793, 1, 7, 1.02], [75, 2, 7, 0.89], [7005, 1, 7, 1.42], [3981, 3, 21, 2.03], [9760, 29, 7, 1.36], [3982, 3, 17, 2.85], [20927, 1, 7, 2.25], [6158, 2, 27, 2.25], [33, 1, 11, 4.03], [997, 2, 9, 4.26], [214, 3, 16, 0.74], [5165, 2, 8, 3.91], [2912, 1, 7, 3.11], [7887, 4, 7, 2.25], [22316, 3, 7, 1.48], [11953, 1, 7, 1.4], [229, 1, 7, 2.31], [998, 2, 9, 4.5], [35, 1, 11, 4.03], [346, 3, 7, 1.38], [6497, 1, 7, 0.87], [389, 4, 7, 2.77], [996, 2, 9, 3.58], [1492, 1, 7, 1.48], [972, 3, 11, 4.56], [955, 2, 7, 1.41], [11490, 1, 7, 1.02], [6496, 1, 7, 1.56], [74, 1, 7, 2.3], [2336, 3, 8, 0.81], [22317, 3, 7, 1.42], [1413, 15, 7, 1.12], [4176, 4, 7, 3.75], [2912, 2, 8, 3.02], [336, 15, 7, 1.91], [12212, 29, 7, 0.96], [192, 3, 18, 3.13], [7573, 1, 11, 4.14], [8677, 3, 7, 3.07], [39, 1, 7, 1.79], [37, 1, 7, 1.77], [11085, 2, 8, 3.16], [201, 3, 9, 2.36], [345, 3, 7, 0.98], [1277, 1, 7, 1.54], [8676, 2, 7, 1.94], [1274, 1, 7, 1.29], [21269, 3, 7, 5.0], [13023, 3, 7, 2.44], [12271, 2, 7, 1.35], [6494, 1, 7, 0.87], [10388, 2, 7, 2.82], [3, 2, 7, 2.35], [10408, 10, 10, 3.18], [202, 2, 7, 1.68], [10936, 2, 7, 3.27], [36, 1, 7, 2.23], [2805, 137, 8, 1.47], [3577, 25, 7, 1.14], [9, 1, 7, 0.96], [5812, 3, 7, 1.86], [11489, 1, 7, 0.96], [11812, 1, 7, 0.89], [1414, 15, 7, 1.0], [20498, 3, 8, 2.71], [3048, 3, 7, 2.73], [9691, 1, 7, 2.41], [8675, 2, 7, 2.91], [9372, 1, 7, 2.6], [346, 1, 7, 1.56], [13928, 1, 7, 2.9], [12225, 1, 7, 2.19], [10386, 2, 7, 1.91], [12764, 2, 10, 1.46], [13893, 2, 7, 4.76], [13280, 1, 7, 2.32], [11814, 1, 7, 0.92], [8898, 3, 7, 4.45], [11089, 1, 7, 0.73], [10407, 10, 10, 2.41], [3576, 25, 7, 1.51], [491, 10, 10, 1.57], [13035, 3, 7, 2.54], [972, 1, 7, 1.51], [9069, 1, 7, 1.42], [10939, 2, 7, 3.72], [8659, 1, 7, 3.43], [19931, 1, 9, 2.43], [11087, 2, 7, 2.51], [2438, 2, 8, 3.7], [958, 2, 7, 0.9], [3577, 29, 7, 1.29], [23611, 3, 9, 0.99], [1523, 1, 7, 2.08], [22317, 3, 257, 3.38], [1413, 15, 24, 2.52], [4176, 4, 391, 5.2], [2912, 2, 358, 4.38], [336, 15, 80, 3.27], [12212, 29, 115, 2.32], [192, 3, 1045, 5.54], [7573, 1, 333, 5.5], [8677, 3, 238, 4.51], [39, 1, 82, 3.74], [37, 1, 82, 3.22], [11085, 2, 435, 5.15], [201, 3, 220, 4.31], [345, 3, 220, 2.92], [1277, 1, 184, 2.9], [8676, 2, 273, 3.3], [1274, 1, 78, 2.65], [21269, 3, 238, 6.0], [13023, 3, 563, 3.8], [12271, 2, 61, 2.71], [6494, 1, 39, 2.81], [10388, 2, 175, 4.71], [3, 2, 91, 3.8], [10408, 10, 563, 5.14], [202, 2, 26, 2.72], [10936, 2, 127, 4.63], [36, 1, 82, 3.58], [2805, 137, 176, 2.83], [3577, 25, 66, 3.09], [9, 1, 33, 2.32], [5812, 3, 442, 3.82], [11489, 1, 104, 2.32], [11812, 1, 177, 2.83], [1414, 15, 24, 1.77], [20498, 3, 430, 4.65], [3048, 3, 199, 4.09], [8675, 2, 273, 4.27], [9372, 1, 216, 3.96], [346, 1, 114, 3.01], [13928, 1, 44, 4.26], [12225, 1, 157, 3.55], [10386, 2, 206, 3.27], [12764, 2, 549, 3.42], [13893, 2, 255, 6.0], [13280, 1, 303, 3.68], [11814, 1, 166, 2.87], [8898, 3, 269, 5.81], [11089, 1, 164, 2.09], [10407, 10, 1149, 3.76], [3576, 25, 96, 2.87], [491, 10, 324, 4.01], [13035, 3, 286, 3.9], [972, 1, 94, 2.86], [9069, 1, 117, 2.78], [10939, 2, 127, 5.08], [8659, 1, 114, 4.79], [19931, 1, 301, 4.38], [11087, 2, 512, 3.87], [2438, 2, 599, 5.06], [958, 2, 103, 2.25], [3577, 29, 28, 2.64], [23611, 3, 333, 2.36], [1523, 1, 45, 3.44]]</t>
+  </si>
+  <si>
+    <t>[[141, 2, 9, 0.88], [2328, 2, 11, 1.85], [8650, 2, 7, 2.81], [130, 1, 7, 1.86], [2327, 2, 11, 1.82], [589, 2, 9, 0.95], [8672, 2, 15, 1.9], [326, 2, 7, 3.12], [6935, 2, 23, 4.24], [206, 2, 7, 0.77], [142, 2, 7, 1.37], [11837, 2, 7, 1.06], [11838, 2, 11, 1.02], [6936, 2, 7, 3.06], [12721, 2, 11, 1.45], [8915, 2, 7, 1.21], [2049, 3, 37, 1.73], [1446, 2, 9, 0.74], [2778, 2, 13, 1.84], [8676, 2, 7, 1.0], [615, 2, 7, 0.85], [305, 2, 7, 2.39], [593, 2, 8, 0.84], [616, 2, 7, 0.87], [21793, 1, 8, 2.18], [413, 1, 7, 1.71], [11835, 2, 7, 1.06], [411, 2, 7, 0.83], [412, 1, 7, 1.92], [10574, 3, 9, 2.89], [12349, 1, 7, 1.03], [8675, 2, 11, 1.94], [145, 2, 13, 2.63], [8673, 2, 9, 2.91], [143, 2, 7, 1.1], [6158, 2, 9, 2.18], [151, 1, 7, 0.9], [11836, 2, 7, 1.36], [10149, 3, 21, 1.49], [3495, 3, 21, 1.51], [2050, 3, 7, 0.64], [2055, 3, 7, 2.55], [146, 2, 7, 2.81], [2054, 3, 7, 1.4], [75, 2, 7, 3.21], [7885, 4, 9, 1.86], [88, 10, 16, 3.31], [416, 1, 7, 1.54], [144, 2, 7, 1.04], [7084, 3, 7, 2.01], [2859, 15, 7, 1.61], [21798, 1, 7, 1.15], [10993, 2, 7, 0.75], [346, 3, 8, 0.82], [335, 3, 17, 4.35], [2424, 29, 7, 4.47], [7705, 2, 7, 2.62], [2423, 80, 7, 1.56], [2423, 29, 7, 1.56], [3848, 2, 7, 2.06], [7704, 2, 7, 2.62], [5165, 1, 7, 4.43], [13023, 3, 10, 2.77], [346, 1, 7, 0.67], [1519, 3, 16, 0.68], [201, 3, 7, 2.66], [2424, 80, 7, 4.47], [60, 3, 10, 4.24], [1414, 15, 7, 0.79], [410, 1, 7, 0.73], [6494, 1, 7, 0.9], [345, 3, 7, 2.81], [13034, 3, 8, 2.41], [11490, 1, 7, 0.89], [5208, 3, 13, 0.87], [11770, 1, 7, 0.75], [432, 3, 11, 4.94], [3430, 15, 7, 1.84], [11954, 1, 7, 2.23], [2703, 3, 7, 3.23], [6952, 1, 7, 1.12], [7004, 1, 7, 0.81], [7706, 2, 9, 2.62], [20927, 1, 7, 1.35], [3429, 15, 7, 0.81], [114, 3, 7, 1.1], [308, 1, 9, 2.95], [7886, 4, 8, 1.31], [1886, 2, 7, 0.79], [105, 3, 7, 1.05], [11811, 1, 7, 1.93], [13928, 1, 7, 2.9], [2331, 1, 7, 1.0], [11089, 1, 7, 0.81], [94, 4, 7, 3.81], [3981, 3, 13, 0.91], [944, 15, 7, 0.79], [10407, 10, 10, 2.08], [5584, 3, 7, 5.0], [1490, 1, 7, 3.83], [8274, 3, 7, 3.88], [11674, 1, 7, 1.67], [3, 2, 7, 0.79], [22317, 3, 8, 0.72], [13033, 3, 7, 1.19], [952, 4, 7, 3.47], [10410, 10, 10, 2.16], [9690, 1, 7, 1.37], [7708, 2, 7, 2.62], [9342, 2, 7, 0.93], [1339, 3, 17, 0.78], [10409, 10, 11, 2.3], [202, 2, 7, 1.13], [21003, 2, 7, 3.61], [8898, 3, 7, 3.13], [10398, 2, 7, 1.81], [5812, 3, 7, 2.91], [957, 2, 7, 0.71], [95, 3, 13, 2.7], [963, 3, 7, 4.0], [823, 1, 7, 3.23], [6497, 1, 7, 0.85], [20969, 3, 7, 1.66], [10516, 3, 15, 0.67], [9082, 3, 24, 2.83], [186, 3, 12, 1.02], [20196, 2, 7, 3.8], [11677, 1, 7, 1.98], [4253, 1, 7, 1.41], [3980, 4, 7, 2.98], [7703, 2, 7, 2.62], [20555, 2, 7, 0.96], [3478, 2, 7, 1.48], [20682, 1, 7, 1.29], [6630, 3, 7, 3.58], [5165, 2, 8, 3.91], [8897, 3, 7, 3.1], [13034, 3, 543, 3.98], [11490, 1, 72, 2.36], [5208, 3, 223, 2.1], [11770, 1, 203, 2.32], [3430, 15, 63, 3.42], [11954, 1, 132, 3.69], [2703, 3, 282, 4.8], [6952, 1, 174, 2.7], [7004, 1, 73, 2.38], [7706, 2, 152, 4.9], [20927, 1, 42, 2.73], [3429, 15, 21, 2.03], [114, 3, 161, 3.38], [308, 1, 144, 5.0], [1886, 2, 145, 2.36], [105, 3, 161, 3.32], [11811, 1, 414, 3.51], [13928, 1, 43, 4.47], [2331, 1, 109, 2.57], [11089, 1, 159, 2.38], [94, 4, 107, 5.38], [3981, 3, 1545, 2.51], [944, 15, 12, 1.71], [10407, 10, 1103, 3.67], [5584, 3, 210, 6.0], [1490, 1, 45, 5.4], [11674, 1, 162, 3.2], [3, 2, 110, 2.36], [22317, 3, 293, 2.29], [13033, 3, 543, 2.75], [952, 4, 67, 5.04], [10410, 10, 1103, 3.76], [9690, 1, 40, 2.75], [7708, 2, 163, 4.19], [9342, 2, 122, 1.85], [1339, 3, 461, 1.67], [10409, 10, 1638, 3.88], [202, 2, 19, 2.04], [21003, 2, 261, 5.19], [8898, 3, 257, 4.7], [10398, 2, 134, 3.38], [5812, 3, 543, 4.48], [957, 2, 99, 2.28], [95, 3, 974, 4.29], [963, 3, 360, 5.57], [823, 1, 36, 4.81], [6497, 1, 35, 2.42], [20969, 3, 541, 3.24], [10516, 3, 549, 2.23], [9082, 3, 2253, 4.42], [186, 3, 611, 2.6], [20196, 2, 261, 5.37], [11677, 1, 413, 3.56], [4253, 1, 158, 2.98], [3980, 4, 413, 4.79], [7703, 2, 163, 4.19], [20555, 2, 53, 2.53], [3478, 2, 40, 2.86], [20682, 1, 572, 2.86], [6630, 3, 86, 5.16], [5165, 2, 343, 5.49], [8897, 3, 257, 4.68]]</t>
+  </si>
+  <si>
+    <t>[[2778, 2, 17, 1.08], [6935, 2, 28, 5.0], [6936, 2, 9, 2.9], [305, 2, 9, 1.46], [8672, 2, 15, 1.9], [615, 2, 9, 1.23], [145, 2, 7, 0.9], [12721, 2, 11, 1.74], [2327, 2, 11, 1.82], [143, 2, 9, 2.5], [146, 2, 7, 2.16], [2328, 2, 11, 1.85], [11681, 2, 13, 3.75], [5491, 2, 11, 0.61], [205, 2, 7, 1.24], [8650, 2, 14, 4.13], [11835, 2, 7, 1.06], [144, 2, 7, 2.11], [8673, 2, 11, 2.44], [8676, 2, 9, 1.6], [308, 1, 11, 1.77], [417, 2, 9, 1.75], [11837, 2, 7, 1.06], [3, 2, 7, 1.77], [6097, 80, 7, 3.92], [22247, 2, 7, 2.33], [6497, 1, 7, 0.85], [11836, 2, 9, 0.94], [990, 2, 7, 1.41], [593, 2, 12, 0.89], [6097, 29, 7, 5.0], [523, 2, 7, 1.27], [6098, 80, 9, 5.0], [11739, 2, 7, 1.04], [88, 10, 21, 1.51], [12350, 1, 7, 5.0], [8915, 2, 9, 0.71], [2054, 3, 9, 1.53], [326, 2, 7, 2.6], [13260, 29, 7, 2.28], [3429, 15, 7, 0.69], [75, 2, 7, 1.84], [336, 15, 7, 0.75], [1413, 15, 7, 1.49], [1492, 1, 7, 2.1], [411, 2, 7, 1.46], [6098, 29, 7, 5.0], [1050, 2, 7, 0.73], [1339, 3, 17, 0.78], [2422, 80, 7, 2.17], [6496, 1, 7, 2.07], [214, 3, 15, 2.7], [947, 15, 7, 0.85], [7704, 2, 7, 2.88], [10149, 3, 21, 2.21], [346, 1, 7, 0.67], [2859, 15, 7, 1.87], [346, 3, 8, 0.82], [345, 3, 7, 2.67], [11738, 2, 7, 1.54], [13264, 29, 7, 1.5], [13258, 29, 13, 2.5], [1490, 1, 7, 2.87], [1243, 2, 7, 2.14], [7004, 1, 7, 2.06], [229, 1, 7, 2.07], [5208, 3, 13, 1.47], [201, 3, 7, 3.06], [22558, 3, 9, 1.74], [10407, 10, 10, 2.08], [13259, 29, 11, 1.45], [2331, 1, 7, 1.0], [432, 3, 7, 2.04], [7705, 2, 7, 2.88], [12229, 2, 7, 0.87], [7706, 2, 7, 2.88], [418, 2, 7, 0.96], [114, 3, 7, 1.1], [957, 2, 7, 1.56], [13928, 1, 7, 2.9], [1163, 3, 7, 2.79], [3478, 2, 7, 1.48], [11844, 2, 7, 1.21], [8938, 2, 7, 0.83], [7036, 1, 7, 0.87], [9784, 1, 7, 2.81], [11490, 1, 7, 1.02], [11687, 2, 7, 1.52], [11404, 2, 7, 0.92], [2703, 3, 7, 3.23], [410, 1, 7, 1.21], [12348, 1, 7, 2.69], [13258, 25, 7, 2.3], [1886, 2, 7, 0.67], [19687, 1, 7, 2.33], [9065, 2, 7, 1.62], [94, 4, 7, 1.16], [12870, 1, 7, 3.68], [413, 1, 7, 3.23], [11690, 2, 7, 1.0], [956, 2, 7, 1.02], [7708, 2, 7, 2.88], [11161, 1, 10, 2.64], [11159, 1, 14, 3.5], [9760, 29, 7, 1.64], [11689, 2, 7, 1.48], [22125, 2, 7, 0.69], [5976, 1, 7, 4.23], [12373, 1, 11, 2.99], [105, 3, 7, 1.05], [21781, 2, 7, 0.9], [2991, 3, 7, 4.45], [1274, 1, 7, 3.79], [7005, 1, 7, 1.56], [5584, 3, 7, 5.0], [2805, 137, 10, 4.42], [9209, 29, 7, 1.41], [11811, 1, 7, 1.93], [3495, 3, 21, 1.51], [13259, 25, 7, 1.43], [11489, 1, 7, 1.96], [4253, 1, 7, 1.41], [8285, 2, 8, 0.85], [20927, 1, 7, 1.35], [8600, 1, 7, 1.84], [9372, 1, 7, 3.35], [247, 1, 7, 2.77], [10147, 1, 7, 0.69], [12764, 2, 8, 1.71], [21269, 3, 7, 3.75], [3722, 25, 8, 0.67], [9491, 21, 16, 3.25], [7007, 1, 7, 1.56], [11887, 2, 7, 1.1], [5076, 1, 7, 2.19], [6360, 10, 15, 1.18], [2331, 1, 109, 2.57], [432, 3, 276, 3.61], [7705, 2, 162, 4.45], [12229, 2, 131, 3.15], [7706, 2, 162, 4.45], [418, 2, 130, 2.53], [114, 3, 224, 2.67], [957, 2, 78, 3.71], [13928, 1, 43, 4.47], [3478, 2, 40, 2.86], [11844, 2, 253, 2.78], [8938, 2, 176, 2.4], [7036, 1, 117, 2.44], [9784, 1, 57, 4.34], [11490, 1, 100, 2.59], [11687, 2, 277, 3.1], [11404, 2, 96, 2.49], [2703, 3, 282, 4.8], [410, 1, 69, 2.68], [12348, 1, 555, 4.27], [13258, 25, 72, 3.87], [1886, 2, 145, 2.24], [19687, 1, 28, 3.9], [9065, 2, 277, 3.19], [94, 4, 105, 3.44], [12870, 1, 128, 5.25], [413, 1, 78, 4.8], [11690, 2, 277, 2.58], [956, 2, 98, 2.59], [7708, 2, 162, 4.45], [11161, 1, 458, 4.22], [11159, 1, 454, 5.08], [9760, 29, 66, 3.21], [11689, 2, 277, 3.06], [22125, 2, 25, 1.91], [5976, 1, 142, 5.8], [12373, 1, 489, 4.56], [105, 3, 224, 2.61], [21781, 2, 82, 2.43], [2991, 3, 147, 6.0], [1274, 1, 74, 5.36], [7005, 1, 31, 2.78], [5584, 3, 210, 6.0], [2805, 137, 167, 5.99], [9209, 29, 30, 2.98], [11811, 1, 414, 3.51], [3495, 3, 886, 3.08], [13259, 25, 64, 3.0], [4253, 1, 148, 3.69], [8285, 2, 443, 2.43], [20927, 1, 42, 2.73], [8600, 1, 133, 3.41], [9372, 1, 209, 4.92], [247, 1, 79, 4.34], [10147, 1, 62, 2.26], [12764, 2, 680, 3.27], [21269, 3, 270, 5.32], [3722, 25, 53, 1.59], [9491, 21, 1833, 4.81], [7007, 1, 31, 2.78], [11887, 2, 177, 2.67], [5076, 1, 120, 3.76], [6360, 10, 680, 2.74]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 12, 2.4], [141, 2, 7, 0.92], [362, 2, 7, 1.93], [361, 2, 9, 1.99], [12721, 2, 17, 3.77], [6935, 2, 19, 5.0], [206, 2, 7, 0.77], [8676, 2, 7, 1.6], [8675, 2, 9, 1.95], [2049, 3, 17, 0.71], [3, 2, 7, 1.13], [22247, 2, 7, 1.83], [305, 2, 7, 1.51], [523, 2, 7, 1.27], [8650, 2, 9, 2.94], [11838, 2, 7, 0.79], [8648, 2, 7, 2.52], [2328, 2, 7, 2.23], [2776, 2, 7, 1.38], [11739, 2, 9, 0.98], [2327, 2, 7, 1.48], [11837, 2, 7, 1.37], [411, 2, 7, 0.73], [12352, 1, 7, 4.99], [589, 2, 7, 1.17], [412, 1, 7, 2.06], [143, 2, 7, 0.98], [11835, 2, 7, 0.94], [146, 2, 7, 2.01], [583, 2, 7, 1.56], [6097, 80, 7, 5.0], [326, 2, 7, 2.23], [10149, 3, 21, 1.49], [145, 2, 7, 1.71], [11836, 2, 7, 1.54], [6097, 29, 7, 1.77], [144, 2, 7, 0.94], [10574, 3, 10, 2.86], [75, 2, 7, 1.67], [12344, 1, 7, 2.59], [6496, 1, 7, 2.64], [6494, 1, 7, 0.9], [2054, 3, 7, 2.83], [1413, 15, 7, 0.89], [6098, 80, 7, 2.22], [8915, 2, 7, 1.25], [1243, 2, 7, 1.91], [1886, 2, 23, 1.92], [21793, 1, 8, 2.18], [944, 15, 7, 0.77], [6098, 29, 7, 2.56], [1492, 1, 7, 0.9], [247, 1, 7, 3.68], [3429, 15, 7, 0.67], [2859, 15, 7, 0.75], [1490, 1, 7, 0.85], [1414, 15, 7, 0.67], [201, 3, 7, 0.85], [6158, 2, 9, 2.18], [3478, 2, 7, 1.48], [308, 1, 14, 1.41], [13928, 1, 7, 2.9], [336, 15, 7, 0.75], [7084, 3, 7, 2.01], [11489, 1, 7, 1.49], [3982, 3, 24, 0.66], [1703, 2, 7, 1.57], [12526, 2, 7, 2.02], [9342, 2, 7, 0.93], [5812, 3, 9, 3.96], [186, 3, 12, 1.02], [11490, 1, 7, 0.92], [4253, 1, 7, 1.41], [94, 4, 7, 0.75], [5813, 3, 10, 3.68], [1050, 2, 7, 0.69], [10398, 2, 7, 1.32], [5811, 3, 8, 4.0], [2821, 3, 13, 0.91], [5939, 3, 7, 0.9], [8599, 1, 7, 2.99], [11811, 1, 7, 1.93], [229, 1, 7, 3.29], [3980, 4, 7, 2.98], [8943, 3, 7, 1.0], [11771, 1, 7, 1.31], [8898, 3, 6, 5.0], [1339, 3, 17, 0.78], [3495, 3, 21, 1.51], [2991, 3, 7, 4.63], [1049, 2, 7, 0.69], [12764, 2, 8, 1.71], [346, 3, 8, 0.82], [13928, 2, 7, 2.9], [19687, 1, 7, 2.33], [192, 3, 15, 4.24], [7036, 1, 7, 0.87], [9690, 1, 7, 1.54], [22573, 2, 7, 1.91], [5584, 3, 7, 5.0], [10124, 1, 7, 4.18], [105, 3, 7, 0.73], [8897, 3, 7, 5.0], [8274, 3, 7, 3.33], [18964, 1, 7, 2.71], [11886, 2, 7, 1.44], [10147, 1, 7, 0.69], [3334, 5, 7, 3.87], [1701, 2, 7, 1.06], [1277, 1, 7, 0.85], [1523, 1, 7, 2.0], [20927, 1, 7, 1.28], [4001, 3, 24, 1.7], [8635, 3, 7, 3.33], [8286, 2, 8, 0.63], [1274, 1, 7, 3.93], [23275, 2, 7, 1.91], [11678, 1, 7, 1.98], [10516, 3, 15, 3.0], [13260, 29, 7, 2.28], [23031, 3, 7, 2.73], [3984, 3, 8, 1.07], [11677, 1, 7, 1.98], [3979, 3, 8, 1.56], [9065, 2, 7, 1.62], [45, 2, 7, 4.22], [21269, 3, 7, 3.75], [10181, 26, 8, 0.81], [346, 1, 7, 0.67], [9373, 5, 7, 1.87], [11690, 2, 7, 1.0], [973, 3, 8, 1.13], [9069, 1, 7, 1.44], [5976, 1, 7, 4.23], [7005, 1, 7, 1.42], [8285, 2, 8, 0.85], [5812, 3, 503, 6.0], [186, 3, 611, 2.6], [11490, 1, 43, 2.14], [4253, 1, 158, 2.98], [94, 4, 113, 2.33], [5813, 3, 503, 5.8], [10398, 2, 135, 2.9], [5811, 3, 459, 6.0], [2821, 3, 1053, 2.45], [5939, 3, 246, 2.47], [8599, 1, 133, 4.56], [11811, 1, 414, 3.51], [229, 1, 74, 4.86], [3980, 4, 413, 4.79], [8943, 3, 351, 2.57], [11771, 1, 183, 2.89], [8898, 3, 245, 6.0], [1339, 3, 461, 1.67], [3495, 3, 886, 3.08], [2991, 3, 138, 6.0], [12764, 2, 680, 3.27], [346, 3, 566, 2.39], [13928, 2, 21, 4.47], [19687, 1, 28, 3.9], [192, 3, 1093, 6.0], [7036, 1, 117, 2.44], [9690, 1, 40, 2.92], [22573, 2, 65, 3.48], [5584, 3, 210, 6.0], [10124, 1, 92, 5.75], [105, 3, 226, 2.3], [8897, 3, 245, 6.0], [11886, 2, 177, 3.01], [10147, 1, 62, 2.26], [3334, 5, 167, 5.44], [1701, 2, 155, 2.63], [1277, 1, 180, 2.42], [1523, 1, 43, 3.57], [20927, 1, 42, 2.66], [4001, 3, 741, 3.26], [8286, 2, 127, 1.55], [1274, 1, 74, 5.5], [23275, 2, 65, 3.48], [11678, 1, 408, 3.55], [10516, 3, 541, 4.58], [13260, 29, 67, 3.85], [23031, 3, 378, 4.29], [3984, 3, 1523, 2.65], [11677, 1, 413, 3.56], [3979, 3, 741, 3.12], [9065, 2, 277, 3.19], [45, 2, 103, 5.79], [21269, 3, 270, 5.32], [10181, 26, 128, 2.38], [346, 1, 142, 2.24], [9373, 5, 78, 3.44], [11690, 2, 277, 2.58], [973, 3, 1092, 2.71], [9069, 1, 111, 3.01], [5976, 1, 142, 5.8], [7005, 1, 31, 2.64], [8285, 2, 443, 2.43]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 28, 4.18], [305, 2, 7, 0.88], [2328, 2, 11, 1.85], [8672, 2, 12, 1.94], [8650, 2, 9, 2.32], [248, 1, 7, 0.66], [143, 2, 7, 0.93], [6936, 2, 9, 3.12], [145, 2, 7, 0.96], [11837, 2, 7, 0.87], [205, 2, 7, 1.24], [11681, 2, 13, 3.43], [417, 2, 9, 1.34], [589, 2, 7, 0.69], [75, 2, 7, 1.79], [146, 2, 7, 1.1], [1124, 2, 15, 0.74], [12721, 2, 11, 1.45], [8673, 2, 11, 2.2], [206, 2, 6, 0.74], [8853, 2, 7, 2.88], [326, 2, 9, 1.68], [1005, 2, 7, 2.48], [11835, 2, 7, 0.69], [144, 2, 7, 1.34], [8915, 2, 11, 2.38], [308, 1, 11, 1.77], [88, 10, 21, 1.51], [434, 2, 7, 0.85], [11739, 2, 9, 2.98], [6158, 2, 12, 1.0], [11234, 2, 11, 1.06], [2424, 29, 7, 4.47], [11738, 2, 7, 1.88], [2423, 29, 7, 1.56], [7704, 2, 7, 2.88], [11836, 2, 9, 1.36], [2424, 80, 7, 4.47], [7705, 2, 9, 4.08], [1413, 15, 7, 0.99], [2054, 3, 9, 1.93], [7706, 2, 9, 4.08], [10574, 3, 10, 3.86], [2423, 80, 7, 1.56], [3, 2, 9, 1.94], [412, 1, 7, 2.06], [2859, 15, 7, 3.6], [3478, 2, 9, 3.17], [12720, 2, 7, 1.89], [10149, 3, 21, 2.64], [74, 1, 7, 3.14], [12343, 1, 7, 3.02], [346, 3, 8, 0.82], [11919, 1, 7, 2.91], [1339, 3, 17, 0.78], [60, 3, 10, 3.75], [6497, 1, 7, 0.85], [346, 1, 7, 0.67], [418, 2, 7, 1.16], [13928, 1, 7, 2.9], [411, 2, 7, 0.74], [13034, 3, 11, 2.28], [18964, 1, 7, 1.52], [13028, 3, 7, 1.96], [11089, 1, 7, 0.81], [10993, 2, 7, 2.86], [413, 1, 7, 3.23], [13260, 29, 7, 2.75], [7036, 1, 7, 1.79], [94, 4, 9, 4.31], [6952, 1, 7, 3.06], [3891, 1, 7, 2.43], [1050, 2, 7, 0.66], [8274, 3, 9, 1.44], [14037, 3, 9, 2.38], [7707, 2, 7, 2.41], [2991, 3, 7, 4.18], [22317, 3, 14, 0.85], [21793, 1, 8, 4.0], [7708, 2, 7, 2.98], [3889, 1, 7, 4.33], [345, 3, 7, 2.93], [6630, 3, 7, 4.62], [11490, 1, 7, 1.02], [5208, 3, 13, 0.87], [1243, 2, 7, 2.33], [1490, 1, 7, 3.83], [2912, 1, 7, 3.02], [3495, 3, 21, 1.51], [563, 2, 7, 1.79], [229, 1, 7, 2.07], [20680, 1, 7, 1.78], [1049, 2, 7, 0.69], [336, 15, 7, 0.98], [6627, 3, 7, 0.85], [5940, 3, 9, 0.75], [12229, 2, 7, 0.87], [192, 3, 15, 4.24], [11581, 29, 7, 1.89], [13033, 3, 7, 2.22], [23275, 2, 7, 1.91], [2331, 1, 7, 1.23], [1274, 1, 7, 3.02], [2805, 137, 10, 3.08], [247, 1, 7, 2.98], [5165, 1, 7, 4.43], [201, 3, 7, 4.28], [8635, 3, 7, 1.14], [114, 3, 7, 3.33], [942, 3, 9, 1.76], [11914, 1, 7, 0.79], [6496, 1, 7, 2.98], [8898, 3, 7, 3.01], [6629, 3, 7, 0.9], [1703, 2, 7, 0.9], [7886, 4, 8, 0.97], [11770, 1, 7, 3.02], [5812, 3, 7, 2.49], [9372, 1, 7, 3.35], [3934, 5, 11, 1.13], [9760, 29, 7, 3.77], [202, 2, 7, 1.79], [21269, 3, 7, 2.59], [186, 3, 15, 2.32], [332, 2, 7, 1.79], [951, 4, 7, 2.96], [83, 2, 7, 1.1], [4940, 1, 7, 0.69], [10527, 3, 13, 3.97], [6360, 10, 15, 2.01], [5811, 3, 8, 2.39], [1886, 2, 7, 0.85], [21781, 2, 7, 0.9], [12373, 1, 11, 2.99], [9082, 3, 24, 2.83], [20927, 1, 7, 1.35], [5584, 3, 7, 5.0], [13498, 3, 7, 3.06], [12870, 1, 7, 3.35], [7036, 1, 110, 4.02], [94, 4, 64, 5.69], [6952, 1, 136, 5.34], [3891, 1, 106, 4.71], [7707, 2, 152, 3.98], [2991, 3, 137, 6.0], [22317, 3, 249, 3.63], [21793, 1, 175, 6.0], [7708, 2, 152, 4.9], [3889, 1, 32, 6.0], [345, 3, 214, 4.71], [6630, 3, 68, 6.0], [11490, 1, 100, 2.59], [5208, 3, 223, 2.1], [1490, 1, 45, 5.4], [2912, 1, 43, 4.6], [3495, 3, 886, 3.08], [563, 2, 19, 2.71], [229, 1, 75, 3.64], [20680, 1, 566, 3.35], [6627, 3, 68, 3.13], [5940, 3, 180, 2.44], [12229, 2, 131, 3.15], [192, 3, 1093, 6.0], [11581, 29, 55, 3.46], [13033, 3, 546, 3.8], [23275, 2, 65, 3.48], [2331, 1, 109, 2.8], [1274, 1, 74, 4.59], [2805, 137, 168, 4.65], [247, 1, 80, 4.55], [5165, 1, 43, 6.0], [201, 3, 272, 5.85], [942, 3, 252, 4.54], [11914, 1, 74, 3.07], [6496, 1, 34, 4.55], [8898, 3, 240, 4.79], [6629, 3, 62, 2.43], [1703, 2, 153, 2.47], [11770, 1, 182, 4.59], [5812, 3, 500, 4.76], [9372, 1, 209, 4.92], [3934, 5, 538, 2.71], [202, 2, 19, 2.71], [21269, 3, 250, 4.37], [186, 3, 513, 4.42], [332, 2, 19, 2.71], [951, 4, 86, 4.54], [83, 2, 14, 2.02], [4940, 1, 111, 2.26], [10527, 3, 687, 5.51], [6360, 10, 291, 3.8], [5811, 3, 538, 3.96], [1886, 2, 144, 2.42], [21781, 2, 82, 2.43], [12373, 1, 489, 4.56], [9082, 3, 2253, 4.42], [20927, 1, 42, 2.73], [5584, 3, 210, 6.0], [13498, 3, 552, 4.63], [12870, 1, 125, 4.92]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 11, 3.36], [141, 2, 9, 1.09], [589, 2, 10, 0.75], [2778, 2, 11, 1.33], [6936, 2, 13, 3.9], [2327, 2, 9, 1.37], [11681, 2, 30, 4.17], [362, 2, 11, 1.69], [8648, 2, 9, 3.55], [8650, 2, 11, 4.78], [305, 2, 11, 3.03], [326, 2, 9, 2.4], [205, 2, 7, 1.64], [2328, 2, 7, 2.1], [1446, 2, 7, 0.92], [2049, 3, 11, 0.75], [130, 1, 9, 1.81], [2775, 2, 9, 1.33], [361, 2, 7, 1.61], [8853, 2, 14, 4.03], [593, 2, 9, 1.46], [143, 2, 7, 1.77], [140, 2, 7, 1.47], [3840, 1, 7, 0.96], [523, 2, 7, 1.49], [7004, 1, 9, 1.21], [413, 1, 7, 1.27], [21793, 1, 7, 3.18], [12350, 1, 7, 0.97], [1124, 2, 7, 1.09], [151, 1, 7, 1.53], [7036, 1, 7, 2.61], [990, 2, 9, 1.44], [5165, 1, 7, 4.43], [12349, 1, 7, 3.68], [145, 2, 7, 2.68], [201, 3, 23, 4.06], [248, 1, 7, 0.76], [8089, 1, 7, 2.62], [6952, 1, 9, 3.04], [6097, 80, 7, 5.0], [2050, 3, 9, 3.0], [2055, 3, 9, 2.33], [345, 3, 9, 2.18], [144, 2, 7, 0.94], [10993, 2, 7, 0.79], [7084, 3, 7, 5.0], [11770, 1, 7, 0.9], [2057, 3, 9, 2.33], [3891, 1, 7, 1.46], [2912, 1, 7, 1.66], [5165, 2, 12, 4.19], [998, 2, 11, 1.31], [3893, 1, 7, 1.21], [9372, 1, 7, 3.47], [12870, 1, 7, 1.58], [12343, 1, 7, 3.68], [7885, 4, 7, 1.91], [2424, 80, 7, 4.14], [12351, 1, 7, 3.68], [6098, 80, 7, 3.64], [6097, 29, 9, 5.0], [20927, 1, 9, 1.16], [10574, 3, 8, 2.79], [6158, 2, 9, 2.08], [3334, 5, 7, 2.0], [12345, 1, 7, 3.68], [11089, 1, 9, 1.67], [10149, 3, 24, 2.61], [1492, 1, 7, 1.08], [2912, 2, 8, 1.27], [3889, 1, 7, 1.21], [4032, 29, 7, 1.21], [12304, 1, 7, 2.06], [972, 3, 7, 1.94], [3576, 25, 9, 2.28], [1700, 2, 7, 1.34], [411, 2, 7, 1.79], [13034, 3, 7, 3.03], [2331, 1, 7, 1.94], [11583, 29, 9, 0.76], [229, 1, 7, 3.98], [11426, 25, 7, 0.98], [5151, 2, 7, 2.95], [11490, 1, 7, 1.79], [995, 2, 7, 1.98], [3, 2, 9, 1.12], [8677, 3, 8, 2.63], [12764, 2, 9, 1.86], [2160, 68, 7, 1.96], [3478, 2, 7, 2.16], [13893, 2, 7, 3.45], [2805, 137, 7, 2.45], [3575, 25, 7, 1.49], [13023, 3, 8, 2.67], [13280, 1, 7, 2.1], [5812, 3, 7, 4.34], [6494, 1, 7, 2.91], [3577, 25, 7, 0.87], [11814, 1, 7, 0.92], [4253, 1, 7, 2.71], [11813, 1, 7, 3.42], [2438, 2, 8, 3.32], [75, 2, 7, 0.79], [9289, 29, 7, 2.91], [11404, 2, 7, 0.83], [9971, 2, 7, 3.67], [957, 2, 7, 2.25], [9967, 2, 7, 3.67], [1413, 15, 7, 0.87], [11150, 2, 8, 0.77], [22317, 3, 7, 0.85], [8283, 2, 8, 1.31], [9069, 1, 7, 1.54], [4586, 10, 16, 1.4], [5584, 3, 7, 2.66], [2878, 1, 7, 1.35], [114, 3, 7, 2.95], [9491, 21, 13, 2.57], [21697, 3, 7, 0.85], [11812, 1, 7, 0.79], [9964, 2, 7, 1.83], [9965, 2, 7, 2.61], [4076, 3, 7, 2.73], [10407, 10, 12, 2.29], [10609, 1, 7, 2.98], [336, 15, 7, 0.75], [1163, 3, 7, 2.79], [8926, 1, 7, 4.45], [12647, 1, 7, 1.49], [11739, 2, 7, 1.86], [13249, 29, 7, 2.23], [3495, 3, 16, 1.44], [11687, 2, 7, 0.73], [7324, 1, 7, 1.59], [11425, 25, 7, 0.98], [8285, 2, 7, 1.0], [4032, 29, 89, 2.65], [12304, 1, 97, 3.51], [972, 3, 552, 3.39], [3576, 25, 24, 4.65], [1700, 2, 67, 2.79], [13034, 3, 552, 4.48], [2331, 1, 109, 3.38], [11583, 29, 45, 3.26], [229, 1, 75, 5.43], [11426, 25, 110, 2.42], [5151, 2, 22, 4.4], [11490, 1, 25, 2.61], [995, 2, 225, 3.42], [3, 2, 90, 3.5], [8677, 3, 216, 4.08], [12764, 2, 687, 3.3], [2160, 68, 123, 3.4], [13893, 2, 251, 4.89], [2805, 137, 168, 3.9], [3575, 25, 74, 3.41], [13023, 3, 435, 4.16], [13280, 1, 297, 3.54], [5812, 3, 430, 5.78], [6494, 1, 46, 4.36], [3577, 25, 82, 2.32], [11814, 1, 209, 2.37], [4253, 1, 157, 4.15], [11813, 1, 288, 4.86], [2438, 2, 581, 4.77], [75, 2, 135, 2.24], [9289, 29, 59, 4.36], [11404, 2, 77, 2.75], [9971, 2, 251, 5.12], [957, 2, 37, 3.67], [9967, 2, 251, 5.12], [1413, 15, 92, 2.32], [11150, 2, 286, 2.18], [22317, 3, 299, 2.3], [8283, 2, 441, 2.76], [9069, 1, 114, 2.98], [4586, 10, 1075, 3.3], [5584, 3, 216, 4.1], [2878, 1, 60, 2.79], [114, 3, 56, 4.11], [9491, 21, 1951, 4.0], [21697, 3, 169, 2.29], [11812, 1, 222, 2.24], [9964, 2, 251, 3.28], [9965, 2, 251, 4.06], [4076, 3, 186, 4.18], [10407, 10, 1115, 3.71], [10609, 1, 265, 4.43], [336, 15, 26, 1.58], [8926, 1, 57, 5.9], [12647, 1, 204, 2.94], [11739, 2, 13, 2.68], [13249, 29, 59, 3.67], [3495, 3, 896, 2.89], [11687, 2, 142, 1.97], [7324, 1, 56, 3.03], [11425, 25, 110, 2.42], [8285, 2, 446, 2.45]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 15, 2.41], [305, 2, 7, 1.49], [6935, 2, 19, 3.14], [2049, 3, 16, 0.77], [141, 2, 7, 0.75], [205, 2, 7, 0.86], [326, 2, 8, 1.03], [130, 1, 7, 1.71], [144, 2, 7, 0.96], [589, 2, 12, 0.67], [151, 1, 7, 0.89], [362, 2, 7, 2.54], [1776, 1, 7, 2.85], [146, 2, 7, 2.94], [145, 2, 7, 1.4], [206, 2, 7, 0.69], [143, 2, 7, 1.12], [2328, 2, 7, 1.01], [8648, 2, 9, 2.52], [1777, 1, 7, 2.22], [6936, 2, 10, 2.57], [5151, 2, 7, 2.98], [8650, 2, 7, 3.16], [2778, 2, 9, 1.06], [22247, 2, 9, 2.65], [8677, 3, 8, 3.63], [10, 2, 11, 2.05], [76, 2, 11, 3.36], [10149, 3, 25, 3.26], [8649, 2, 7, 3.36], [2050, 3, 9, 1.52], [412, 1, 7, 1.75], [13028, 3, 7, 0.96], [361, 2, 7, 1.42], [413, 1, 7, 2.14], [7004, 1, 7, 0.77], [11404, 2, 9, 1.19], [411, 2, 7, 1.42], [410, 1, 7, 1.67], [3478, 2, 7, 2.36], [6158, 2, 12, 0.75], [308, 1, 7, 2.44], [167, 3, 11, 4.08], [5081, 2, 18, 1.5], [7005, 1, 9, 0.99], [3495, 3, 26, 2.98], [45, 2, 7, 3.67], [7036, 1, 7, 3.16], [5812, 3, 10, 5.0], [9827, 3, 7, 1.38], [94, 4, 7, 3.04], [3893, 1, 7, 1.06], [168, 3, 9, 1.09], [3889, 1, 7, 1.06], [10574, 3, 9, 2.33], [3891, 1, 7, 1.06], [2049, 1, 7, 0.77], [13280, 1, 7, 2.37], [12870, 1, 7, 5.0], [2336, 3, 8, 1.29], [335, 3, 22, 3.78], [1504, 2, 16, 1.33], [6097, 29, 9, 5.0], [6097, 80, 7, 5.0], [11737, 2, 7, 2.04], [95, 3, 21, 0.92], [998, 2, 9, 3.14], [346, 1, 7, 1.58], [20927, 1, 7, 2.0], [79, 1, 7, 0.73], [6098, 29, 9, 5.0], [22316, 3, 9, 0.97], [9069, 1, 7, 2.6], [6098, 80, 7, 5.0], [1070, 7, 13, 0.73], [14017, 3, 7, 1.29], [8898, 3, 7, 4.48], [9760, 29, 7, 1.15], [346, 3, 8, 0.9], [997, 2, 9, 3.19], [20498, 1, 7, 2.44], [7887, 4, 9, 0.92], [13034, 3, 10, 2.48], [1622, 1, 12, 0.53], [8945, 3, 8, 2.29], [13260, 29, 7, 2.28], [22554, 10, 15, 0.87], [336, 15, 9, 0.68], [7567, 3, 7, 3.89], [5946, 1, 7, 1.06], [5811, 3, 6, 2.76], [5813, 3, 7, 1.98], [5513, 2, 7, 2.49], [22317, 3, 10, 1.35], [11085, 2, 9, 1.33], [5086, 1, 11, 1.14], [5209, 3, 7, 1.04], [12924, 1, 7, 0.86], [12350, 1, 7, 4.0], [20498, 3, 10, 1.9], [995, 2, 9, 4.24], [229, 1, 7, 4.95], [974, 3, 7, 1.69], [996, 2, 9, 3.92], [972, 3, 8, 1.1], [33, 1, 7, 1.92], [9691, 1, 7, 3.68], [8557, 3, 7, 1.53], [35, 1, 7, 2.52], [110, 4, 9, 1.31], [3049, 3, 7, 4.11], [1080, 3, 7, 2.09], [20486, 3, 10, 3.27], [1703, 2, 7, 2.72], [13023, 3, 8, 3.06], [2424, 80, 7, 4.51], [4076, 3, 7, 5.0], [5584, 3, 7, 4.11], [39, 1, 7, 2.02], [8104, 1, 7, 0.75], [14018, 3, 7, 0.96], [3900, 3, 9, 2.92], [952, 4, 7, 3.81], [215, 4, 7, 5.0], [11510, 3, 10, 1.49], [9081, 3, 15, 2.8], [9613, 1, 7, 0.87], [34, 1, 7, 2.02], [20486, 1, 7, 2.87], [114, 3, 7, 1.42], [972, 1, 7, 1.89], [1414, 15, 7, 0.81], [2854, 21, 13, 0.84], [20969, 3, 7, 2.52], [6497, 1, 7, 2.43], [3047, 3, 7, 2.02], [998, 2, 185, 4.25], [346, 1, 121, 2.73], [79, 1, 34, 2.0], [6098, 29, 14, 5.15], [22316, 3, 249, 2.59], [9069, 1, 82, 4.16], [1070, 7, 397, 2.9], [14017, 3, 131, 3.39], [8898, 3, 188, 6.0], [9760, 29, 57, 2.81], [346, 3, 484, 2.55], [997, 2, 185, 4.3], [20498, 1, 66, 4.1], [13034, 3, 391, 4.65], [1622, 1, 38, 1.22], [8945, 3, 463, 3.4], [13260, 29, 63, 3.39], [22554, 10, 327, 1.98], [336, 15, 77, 1.72], [5946, 1, 108, 2.17], [5811, 3, 391, 4.32], [5813, 3, 391, 4.14], [5513, 2, 67, 3.6], [22317, 3, 211, 3.02], [11085, 2, 367, 3.0], [5086, 1, 123, 4.29], [5209, 3, 391, 2.08], [12924, 1, 36, 3.19], [12350, 1, 479, 5.68], [20498, 3, 391, 4.06], [995, 2, 185, 6.0], [974, 3, 128, 2.8], [996, 2, 185, 6.0], [972, 3, 470, 2.29], [33, 1, 88, 3.08], [8557, 3, 136, 3.68], [35, 1, 39, 3.68], [110, 4, 162, 3.47], [3049, 3, 92, 5.77], [1080, 3, 104, 3.24], [20486, 3, 396, 5.43], [1703, 2, 127, 4.37], [13023, 3, 391, 4.6], [2424, 80, 152, 5.66], [4076, 3, 132, 6.0], [5584, 3, 168, 5.27], [39, 1, 88, 3.13], [8104, 1, 144, 1.79], [14018, 3, 131, 3.07], [952, 4, 63, 4.91], [11510, 3, 456, 3.64], [9081, 3, 360, 4.97], [9613, 1, 32, 2.53], [34, 1, 97, 3.13], [20486, 1, 67, 5.02], [114, 3, 192, 2.57], [972, 1, 79, 3.0], [1414, 15, 79, 2.47], [2854, 21, 836, 2.51], [20969, 3, 508, 3.62], [6497, 1, 29, 3.59], [3047, 3, 211, 3.13]]</t>
   </si>
 </sst>
 </file>

--- a/QD_upload.xlsx
+++ b/QD_upload.xlsx
@@ -70,82 +70,82 @@
     <t>SakkarahQD</t>
   </si>
   <si>
-    <t>14/12/2025 12:45</t>
-  </si>
-  <si>
-    <t>20/12/2025 23:59</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 8, 0.73], [305, 2, 4, 0.25], [326, 2, 4, 0.54], [589, 2, 5, 0.2], [143, 2, 4, 0.58], [2049, 3, 9, 0.47], [130, 1, 4, 0.6], [6935, 2, 8, 1.27], [75, 2, 5, 0.87], [144, 2, 4, 0.99], [12721, 2, 6, 0.72], [145, 2, 4, 0.52], [8915, 2, 8, 0.2], [7885, 4, 4, 0.4], [146, 2, 4, 0.2], [1776, 1, 4, 0.61], [2778, 2, 5, 0.2], [206, 2, 4, 0.2], [1777, 1, 4, 0.74], [151, 1, 4, 0.2], [8648, 2, 4, 1.02], [6936, 2, 5, 1.17], [2328, 2, 4, 0.2], [5151, 2, 4, 1.52], [7886, 4, 5, 0.45], [248, 1, 4, 0.2], [2050, 3, 6, 0.41], [141, 2, 4, 0.2], [2991, 3, 4, 2.05], [74, 1, 4, 1.53], [2054, 3, 5, 0.54], [83, 2, 4, 0.58], [1446, 2, 4, 0.2], [1492, 1, 5, 0.72], [7004, 1, 4, 0.2], [2055, 3, 5, 0.42], [76, 2, 4, 0.84], [8649, 2, 4, 1.4], [345, 3, 4, 0.2], [11404, 2, 4, 0.35], [7084, 3, 4, 2.53], [3889, 1, 4, 0.2], [10825, 21, 10, 0.78], [61, 3, 4, 0.53], [10149, 3, 15, 0.99], [7036, 1, 4, 0.93], [21793, 1, 4, 1.93], [12870, 1, 4, 2.33], [33, 1, 4, 0.83], [94, 4, 4, 0.2], [5081, 2, 5, 0.69], [3478, 2, 4, 0.53], [10, 2, 4, 0.68], [11681, 2, 5, 1.41], [167, 3, 5, 1.65], [411, 2, 4, 0.2], [9827, 3, 4, 0.2], [308, 1, 4, 2.58], [1654, 2, 4, 0.2], [3891, 1, 4, 0.2], [1504, 2, 4, 0.55], [8677, 3, 6, 0.65], [201, 3, 5, 0.2], [168, 3, 4, 1.23], [3893, 1, 4, 0.2], [84, 2, 4, 0.4], [79, 1, 4, 0.2], [35, 1, 4, 0.83], [2336, 3, 5, 0.99], [13280, 1, 4, 0.81], [23, 1, 4, 0.67], [1490, 1, 4, 0.2], [9760, 29, 4, 0.24], [1243, 2, 4, 0.53], [6158, 2, 6, 0.51], [412, 1, 4, 1.14], [45, 2, 4, 0.64], [361, 2, 4, 0.66], [346, 1, 4, 0.2], [20927, 1, 4, 0.49], [1767, 25, 4, 0.59], [25, 1, 4, 0.76], [12225, 1, 4, 0.43], [9069, 1, 4, 0.37], [413, 1, 5, 1.07], [21269, 3, 4, 1.6], [3495, 3, 15, 1.31], [346, 3, 4, 0.5], [490, 1, 4, 0.53], [997, 2, 4, 0.77], [34, 1, 4, 0.88], [1766, 25, 4, 0.2], [8898, 3, 5, 0.75], [5946, 1, 4, 1.03], [9691, 1, 4, 1.77], [1070, 7, 9, 0.46], [1519, 3, 11, 0.34], [9372, 1, 5, 1.74], [14017, 3, 5, 1.04], [11954, 1, 4, 0.2], [20498, 1, 4, 0.2], [38, 1, 4, 0.88], [974, 3, 5, 0.88], [14037, 3, 4, 0.2], [22317, 3, 5, 0.2], [5584, 3, 4, 1.19], [972, 3, 5, 1.15], [1091, 1, 5, 0.2], [7567, 3, 4, 1.21], [20498, 3, 6, 0.58], [110, 4, 4, 0.2], [9828, 3, 4, 0.2], [8945, 3, 5, 0.51], [5813, 3, 4, 1.51], [2991, 1, 4, 0.52], [82, 2, 4, 0.52], [3048, 3, 4, 1.24], [39, 1, 4, 0.59], [1080, 3, 5, 0.3], [1414, 15, 4, 0.2], [24, 1, 4, 1.04], [13034, 3, 5, 1.09], [336, 15, 4, 0.2], [1767, 2, 4, 0.2], [202, 2, 4, 0.9], [13260, 29, 4, 0.73], [10780, 10, 4, 0.98], [5513, 2, 4, 0.57], [9082, 3, 15, 0.83], [11811, 1, 4, 0.94], [4203, 1, 4, 0.2], [2878, 1, 4, 0.61], [14018, 3, 4, 0.85], [8635, 3, 5, 0.2], [3900, 3, 4, 0.47], [8104, 1, 4, 0.44], [8672, 2, 247, 4.98], [305, 2, 117, 3.3], [326, 2, 78, 3.44], [589, 2, 52, 1.43], [143, 2, 127, 3.36], [130, 1, 20, 2.57], [6935, 2, 243, 5.31], [75, 2, 126, 3.91], [144, 2, 127, 3.21], [12721, 2, 245, 4.0], [145, 2, 129, 3.26], [8915, 2, 65, 1.26], [146, 2, 152, 2.27], [1776, 1, 93, 3.44], [2778, 2, 135, 3.37], [206, 2, 110, 1.95], [1777, 1, 80, 3.66], [151, 1, 67, 1.98], [8648, 2, 229, 4.53], [6936, 2, 243, 4.78], [2328, 2, 109, 3.35], [5151, 2, 17, 4.32], [7886, 4, 48, 1.63], [248, 1, 39, 2.99], [2050, 3, 412, 3.9], [141, 2, 113, 3.92], [2991, 3, 139, 6.0], [74, 1, 170, 5.84], [2054, 3, 347, 2.86], [83, 2, 18, 1.88], [1446, 2, 131, 3.74], [1492, 1, 19, 4.15], [7004, 1, 81, 1.98], [2055, 3, 412, 3.1], [76, 2, 80, 3.85], [8649, 2, 194, 6.0], [345, 3, 260, 3.35], [11404, 2, 106, 1.94], [3889, 1, 107, 3.11], [10825, 21, 546, 4.5], [61, 3, 211, 2.29], [10149, 3, 753, 4.0], [7036, 1, 109, 4.05], [21793, 1, 234, 5.21], [12870, 1, 119, 6.0], [33, 1, 85, 3.75], [94, 4, 106, 4.41], [5081, 2, 163, 3.57], [10, 2, 106, 2.58], [11681, 2, 276, 4.73], [167, 3, 194, 4.58], [411, 2, 93, 2.99], [9827, 3, 75, 3.19], [308, 1, 170, 6.0], [1654, 2, 68, 2.84], [3891, 1, 107, 4.43], [1504, 2, 208, 4.06], [8677, 3, 254, 3.57], [201, 3, 260, 3.35], [168, 3, 137, 4.17], [3893, 1, 107, 4.43], [84, 2, 68, 2.12], [79, 1, 24, 2.97], [35, 1, 38, 3.61]]</t>
-  </si>
-  <si>
-    <t>[[2327, 2, 4, 0.2], [305, 2, 4, 0.45], [6935, 2, 6, 1.69], [2778, 2, 4, 0.2], [589, 2, 5, 0.2], [8915, 2, 5, 0.2], [144, 2, 4, 0.54], [143, 2, 4, 0.44], [2328, 2, 4, 0.26], [6936, 2, 5, 1.66], [205, 2, 4, 0.37], [8648, 2, 4, 1.15], [2775, 2, 4, 0.2], [8650, 2, 5, 1.53], [145, 2, 4, 0.5], [146, 2, 5, 0.57], [326, 2, 4, 0.22], [7036, 1, 4, 1.2], [2049, 3, 8, 0.21], [88, 10, 11, 0.5], [2776, 2, 4, 0.2], [141, 2, 5, 0.39], [7004, 1, 4, 0.74], [1446, 2, 4, 0.39], [206, 2, 4, 0.2], [9760, 29, 4, 0.2], [362, 2, 4, 0.52], [2912, 1, 4, 1.58], [2055, 3, 4, 0.56], [142, 2, 4, 0.4], [3893, 1, 4, 0.2], [12870, 1, 5, 1.18], [5165, 1, 4, 2.3], [9372, 1, 4, 0.59], [7886, 4, 5, 0.44], [7084, 3, 4, 1.07], [3889, 1, 4, 0.2], [2054, 3, 5, 0.2], [2050, 3, 5, 0.56], [1622, 1, 4, 0.2], [10, 2, 5, 0.36], [21793, 1, 4, 0.41], [7573, 1, 9, 2.45], [3891, 1, 4, 0.2], [5208, 3, 5, 0.19], [75, 2, 5, 1.0], [10149, 3, 17, 1.22], [20927, 1, 4, 0.76], [997, 2, 4, 0.76], [3, 2, 5, 0.62], [11234, 2, 5, 0.25], [5165, 2, 5, 2.22], [12721, 2, 5, 1.46], [998, 2, 4, 0.31], [1886, 2, 5, 0.2], [94, 4, 4, 0.4], [346, 3, 5, 0.21], [35, 1, 4, 1.79], [22247, 2, 4, 1.31], [9491, 21, 15, 0.22], [996, 2, 4, 0.2], [955, 2, 4, 0.54], [83, 2, 4, 0.45], [229, 1, 4, 1.55], [33, 1, 4, 1.43], [7887, 4, 4, 0.97], [6158, 2, 4, 0.44], [2912, 2, 7, 0.74], [76, 2, 5, 1.1], [413, 1, 4, 1.88], [13928, 1, 4, 1.2], [2424, 80, 4, 0.86], [2805, 137, 4, 1.33], [5209, 3, 6, 0.46], [5076, 1, 4, 0.97], [346, 1, 4, 0.43], [8676, 2, 4, 1.22], [38, 1, 4, 1.63], [34, 1, 4, 1.07], [418, 2, 4, 0.54], [84, 2, 4, 1.4], [8104, 1, 4, 1.09], [12212, 29, 5, 0.2], [3495, 3, 10, 0.82], [11952, 1, 4, 0.43], [1414, 15, 4, 0.42], [39, 1, 4, 1.6], [11490, 1, 4, 0.96], [3048, 3, 4, 1.15], [11770, 1, 4, 0.6], [2424, 29, 4, 0.86], [411, 2, 4, 0.67], [10407, 10, 6, 1.67], [1703, 2, 4, 1.33], [9691, 1, 4, 1.22], [202, 2, 4, 0.47], [13928, 2, 4, 0.55], [11772, 1, 4, 1.23], [11953, 1, 4, 0.51], [5584, 3, 4, 2.8], [22316, 3, 4, 0.6], [23961, 3, 4, 2.38], [7567, 3, 4, 1.58], [13893, 2, 4, 1.17], [12764, 2, 5, 0.48], [13023, 3, 5, 0.31], [10410, 10, 10, 1.67], [1519, 3, 10, 0.34], [74, 1, 4, 3.27], [21269, 3, 5, 0.99], [1274, 1, 4, 0.41], [5164, 1, 4, 1.95], [410, 1, 4, 1.01], [2331, 1, 4, 0.64], [4253, 1, 4, 0.2], [1523, 1, 4, 0.6], [10408, 10, 6, 1.83], [1492, 1, 4, 0.2], [2438, 2, 6, 1.64], [12229, 2, 5, 0.2], [3430, 15, 4, 1.45], [6097, 80, 4, 1.26], [13034, 3, 5, 1.2], [3047, 3, 4, 1.64], [6805, 1, 4, 0.51], [8674, 2, 4, 1.21], [71, 15, 4, 0.35], [1243, 2, 5, 1.13], [21059, 1, 4, 1.6], [10780, 10, 4, 2.11], [11116, 1, 4, 0.56], [2436, 4, 5, 0.2], [6097, 29, 4, 0.79], [11812, 1, 4, 0.2], [1080, 3, 4, 1.41], [24257, 1, 4, 0.56], [3429, 15, 4, 0.37], [2327, 2, 125, 3.09], [305, 2, 104, 3.46], [6935, 2, 198, 6.0], [2778, 2, 112, 3.56], [589, 2, 141, 2.29], [8915, 2, 155, 2.94], [144, 2, 107, 3.63], [143, 2, 105, 3.45], [2328, 2, 107, 4.03], [6936, 2, 198, 5.9], [205, 2, 51, 2.81], [8648, 2, 159, 5.71], [2775, 2, 112, 3.56], [8650, 2, 159, 5.44], [145, 2, 107, 3.56], [146, 2, 107, 4.24], [326, 2, 81, 3.66], [7036, 1, 91, 5.66], [2049, 3, 324, 3.34], [88, 10, 397, 4.74], [2776, 2, 112, 3.77], [141, 2, 111, 3.36], [1446, 2, 35, 2.25], [206, 2, 85, 2.22], [9760, 29, 63, 3.37], [362, 2, 101, 3.59], [2912, 1, 43, 4.54], [2055, 3, 135, 2.57], [142, 2, 90, 3.29], [3893, 1, 89, 3.35], [12870, 1, 97, 5.83], [5165, 1, 43, 5.85], [9372, 1, 212, 4.51], [7886, 4, 33, 1.61], [7084, 3, 93, 4.19], [3889, 1, 89, 4.01], [2054, 3, 111, 2.89], [1622, 1, 56, 1.72], [10, 2, 88, 3.02], [21793, 1, 222, 2.45], [7573, 1, 261, 6.0], [3891, 1, 89, 3.4], [5208, 3, 326, 2.1], [75, 2, 102, 4.52], [10149, 3, 625, 4.75], [20927, 1, 18, 2.74], [997, 2, 169, 4.96], [3, 2, 86, 3.96], [11234, 2, 170, 2.72], [5165, 2, 344, 5.45], [12721, 2, 199, 4.94], [998, 2, 169, 4.14], [1886, 2, 111, 3.67], [94, 4, 85, 4.74], [346, 3, 447, 3.46], [22247, 2, 262, 3.94], [9491, 21, 1499, 3.56], [996, 2, 165, 5.77], [955, 2, 100, 2.46], [229, 1, 60, 4.4], [33, 1, 77, 4.35], [6158, 2, 241, 2.98], [2912, 2, 275, 5.31]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 5, 1.34], [11685, 2, 4, 1.87], [326, 2, 5, 0.7], [8648, 2, 4, 0.46], [589, 2, 5, 0.2], [2327, 2, 5, 0.2], [205, 2, 5, 0.2], [593, 2, 5, 0.52], [11681, 2, 5, 1.37], [143, 2, 4, 0.51], [305, 2, 4, 0.51], [8915, 2, 5, 0.42], [8650, 2, 4, 0.96], [141, 2, 4, 0.53], [6936, 2, 5, 1.85], [2778, 2, 5, 0.2], [146, 2, 4, 1.07], [88, 10, 12, 0.19], [7004, 1, 4, 1.01], [7036, 1, 4, 1.73], [145, 2, 4, 0.48], [1446, 2, 4, 0.2], [8853, 2, 5, 1.2], [362, 2, 4, 0.5], [2055, 3, 6, 1.73], [417, 2, 4, 0.55], [10993, 2, 4, 0.59], [11737, 2, 5, 0.2], [3893, 1, 4, 0.2], [75, 2, 4, 0.9], [2050, 3, 4, 1.69], [159, 3, 6, 0.19], [3840, 1, 4, 0.39], [523, 2, 4, 0.53], [12870, 1, 4, 1.2], [3889, 1, 4, 0.53], [2057, 3, 5, 1.78], [7084, 3, 5, 0.28], [13280, 1, 4, 0.59], [20927, 1, 4, 0.47], [3, 2, 4, 0.71], [7005, 1, 4, 0.74], [997, 2, 5, 0.78], [3982, 3, 14, 1.18], [9760, 29, 4, 0.2], [10, 2, 4, 0.67], [3891, 1, 4, 0.53], [98, 11, 11, 0.54], [998, 2, 4, 0.69], [11739, 2, 4, 0.73], [6158, 2, 6, 0.2], [7885, 4, 5, 0.2], [84, 2, 4, 0.9], [5165, 2, 5, 2.22], [346, 3, 4, 0.52], [9372, 1, 4, 1.35], [3980, 4, 4, 1.2], [5165, 1, 4, 2.3], [411, 2, 4, 1.11], [10388, 2, 4, 1.83], [2912, 1, 4, 1.58], [9491, 21, 12, 0.22], [214, 3, 9, 0.38], [346, 1, 4, 0.39], [3981, 3, 13, 1.15], [1492, 1, 4, 0.7], [22316, 3, 4, 0.51], [10386, 2, 4, 0.99], [33, 1, 4, 2.33], [995, 2, 4, 1.16], [13928, 1, 4, 0.55], [418, 2, 4, 0.51], [22247, 2, 4, 1.6], [308, 1, 4, 0.67], [13893, 2, 4, 1.13], [336, 15, 4, 1.0], [7886, 4, 4, 0.2], [7567, 3, 4, 1.21], [2912, 2, 5, 2.27], [35, 1, 4, 1.83], [10631, 2, 4, 1.98], [11490, 1, 4, 1.05], [229, 1, 4, 1.2], [159, 1, 4, 0.2], [11953, 1, 5, 0.2], [83, 2, 4, 0.49], [11770, 1, 5, 0.2], [13283, 1, 4, 0.59], [22317, 3, 6, 0.51], [10780, 10, 4, 4.0], [10407, 10, 7, 1.35], [9691, 1, 5, 0.89], [13286, 1, 4, 0.59], [10149, 3, 15, 1.48], [10410, 10, 6, 1.27], [12271, 2, 4, 2.01], [6497, 1, 4, 0.45], [345, 3, 4, 1.01], [1413, 15, 4, 0.2], [74, 1, 4, 1.1], [8943, 3, 4, 0.38], [3478, 2, 4, 0.84], [37, 1, 4, 1.16], [9971, 2, 4, 0.69], [23611, 3, 4, 0.2], [10387, 2, 4, 0.95], [39, 1, 4, 0.43], [11085, 2, 5, 1.27], [4076, 3, 4, 1.35], [3048, 3, 5, 0.92], [2331, 1, 4, 1.45], [159, 16, 4, 0.51], [34, 1, 4, 0.93], [13281, 1, 4, 0.59], [20498, 3, 5, 0.5], [82, 2, 4, 0.62], [4001, 3, 8, 1.13], [11510, 3, 5, 0.5], [45, 2, 4, 0.56], [9, 1, 4, 0.5], [12338, 29, 4, 0.38], [9965, 2, 4, 0.69], [9964, 2, 4, 0.69], [10936, 2, 4, 1.7], [215, 4, 4, 0.78], [24257, 1, 4, 1.5], [105, 3, 4, 0.51], [1523, 1, 4, 1.08], [12764, 2, 6, 0.35], [1895, 3, 4, 0.74], [12212, 29, 4, 0.5], [12858, 1, 5, 0.2], [1080, 3, 4, 0.46], [11489, 1, 4, 0.5], [2805, 137, 5, 0.47], [8635, 3, 4, 1.51], [6935, 2, 223, 5.26], [11685, 2, 222, 5.8], [326, 2, 87, 3.8], [8648, 2, 218, 4.07], [589, 2, 124, 3.05], [2327, 2, 111, 2.93], [205, 2, 44, 3.38], [593, 2, 186, 3.67], [11681, 2, 222, 5.79], [143, 2, 120, 3.88], [305, 2, 119, 3.38], [8915, 2, 139, 2.04], [8650, 2, 218, 3.21], [141, 2, 125, 4.03], [6936, 2, 223, 6.0], [2778, 2, 127, 3.51], [146, 2, 95, 4.01], [88, 10, 462, 3.29], [7004, 1, 57, 3.23], [7036, 1, 104, 4.72], [145, 2, 123, 4.27], [1446, 2, 124, 4.49], [8853, 2, 223, 4.82], [362, 2, 114, 3.36], [2055, 3, 374, 5.86], [417, 2, 125, 3.45], [10993, 2, 51, 2.73], [11737, 2, 14, 3.71], [3893, 1, 92, 3.33], [75, 2, 108, 3.67], [2050, 3, 374, 5.77], [159, 3, 579, 3.73], [3840, 1, 41, 1.53], [523, 2, 125, 3.5], [12870, 1, 102, 5.64], [3889, 1, 120, 2.38], [2057, 3, 374, 5.97], [7084, 3, 105, 3.88], [13280, 1, 303, 3.68], [20927, 1, 76, 3.17], [3, 2, 117, 2.73], [7005, 1, 76, 2.78], [997, 2, 177, 3.44], [3982, 3, 641, 4.81], [9760, 29, 58, 3.31], [10, 2, 101, 2.65], [3891, 1, 120, 2.38], [98, 11, 674, 3.35], [998, 2, 177, 3.27], [11739, 2, 34, 3.11], [6158, 2, 214, 3.69], [84, 2, 65, 3.09], [5165, 2, 357, 5.27], [346, 3, 589, 2.41], [9372, 1, 216, 3.96], [3980, 4, 356, 4.3], [5165, 1, 45, 5.79], [10388, 2, 159, 4.87], [2912, 1, 45, 4.47], [9491, 21, 1576, 2.84], [214, 3, 236, 1.72], [346, 1, 148, 2.26], [3981, 3, 1188, 4.05], [1492, 1, 36, 2.84]]</t>
-  </si>
-  <si>
-    <t>[[326, 2, 5, 0.47], [2049, 3, 10, 0.21], [6935, 2, 9, 0.72], [362, 2, 5, 0.7], [141, 2, 5, 0.54], [75, 2, 4, 0.49], [1776, 1, 4, 0.58], [8672, 2, 6, 0.47], [7886, 4, 4, 0.41], [2778, 2, 5, 0.2], [6936, 2, 6, 1.27], [305, 2, 4, 0.48], [593, 2, 6, 0.2], [1777, 1, 4, 0.93], [11681, 2, 5, 2.33], [8648, 2, 5, 0.77], [151, 1, 4, 0.44], [206, 2, 4, 0.2], [88, 10, 12, 0.33], [2328, 2, 5, 0.2], [83, 2, 4, 0.52], [8650, 2, 5, 1.15], [2050, 3, 5, 0.66], [5151, 2, 4, 1.4], [412, 1, 4, 0.91], [144, 2, 4, 1.0], [2991, 3, 4, 2.1], [22247, 2, 6, 1.06], [361, 2, 4, 0.49], [57, 1, 5, 0.2], [10149, 3, 15, 1.32], [2054, 3, 4, 1.36], [417, 2, 4, 0.29], [146, 2, 4, 0.56], [3478, 2, 4, 0.77], [45, 2, 4, 1.12], [143, 2, 4, 0.46], [7004, 1, 5, 0.47], [167, 3, 5, 1.09], [12721, 2, 6, 0.96], [168, 3, 6, 0.74], [2055, 3, 4, 0.94], [74, 1, 4, 0.84], [1446, 2, 4, 0.65], [346, 1, 4, 0.2], [84, 2, 4, 0.4], [7036, 1, 4, 2.21], [335, 3, 11, 0.39], [3495, 3, 15, 0.92], [5081, 2, 4, 0.2], [10, 2, 4, 0.92], [13028, 3, 4, 0.5], [8649, 2, 4, 1.15], [12870, 1, 4, 2.83], [410, 1, 4, 0.2], [11404, 2, 5, 0.2], [79, 1, 4, 0.2], [96, 11, 16, 0.46], [3889, 1, 4, 0.2], [145, 2, 4, 0.38], [5208, 3, 6, 0.19], [3893, 1, 5, 0.2], [1492, 1, 4, 0.2], [23, 1, 4, 1.73], [5812, 3, 5, 1.22], [1504, 2, 6, 0.2], [94, 4, 4, 0.2], [7005, 1, 4, 0.49], [13260, 29, 4, 0.96], [9827, 3, 4, 0.2], [411, 2, 4, 0.2], [3891, 1, 4, 0.2], [1490, 1, 5, 0.2], [25, 1, 4, 0.95], [21269, 3, 4, 1.45], [13280, 1, 4, 1.23], [998, 2, 4, 0.69], [9069, 1, 4, 1.62], [7567, 3, 4, 1.12], [5086, 1, 6, 1.11], [2878, 1, 6, 0.54], [1243, 2, 4, 1.0], [1703, 2, 4, 0.88], [9691, 1, 4, 1.9], [20927, 1, 4, 0.61], [997, 2, 4, 1.3], [5209, 3, 5, 0.19], [346, 3, 5, 0.21], [11914, 1, 5, 0.2], [5660, 2, 5, 1.05], [856, 1, 4, 0.44], [1124, 2, 5, 0.2], [5584, 3, 4, 0.44], [1070, 7, 11, 0.39], [159, 3, 6, 0.2], [8274, 3, 5, 1.09], [11811, 1, 4, 1.0], [996, 2, 5, 1.21], [1519, 3, 12, 0.23], [23961, 3, 4, 1.0], [8898, 3, 4, 2.67], [5513, 2, 4, 0.66], [22317, 3, 5, 0.51], [1091, 1, 4, 0.2], [24, 1, 5, 0.95], [952, 4, 4, 2.89], [13034, 3, 6, 0.77], [9081, 3, 9, 0.79], [12661, 1, 4, 2.1], [27, 1, 4, 1.23], [336, 15, 4, 0.2], [1413, 15, 4, 0.2], [9760, 29, 4, 0.2], [4203, 1, 5, 0.53], [10529, 29, 4, 0.94], [20498, 1, 4, 0.97], [9082, 3, 18, 1.17], [9372, 1, 4, 0.39], [1163, 3, 5, 0.2], [6097, 80, 4, 0.59], [6097, 29, 4, 0.2], [2109, 3, 9, 0.21], [82, 2, 4, 0.39], [972, 3, 5, 0.47], [995, 2, 4, 1.16], [66, 16, 4, 0.2], [2104, 3, 6, 1.63], [6098, 80, 4, 0.83], [20498, 3, 5, 0.94], [66, 1, 4, 0.46], [8635, 3, 5, 0.6], [12225, 1, 4, 0.52], [5813, 3, 4, 0.5], [10780, 10, 4, 1.48], [5946, 1, 4, 0.53], [6098, 29, 4, 0.8], [34, 1, 4, 1.05], [326, 2, 62, 3.13], [2049, 3, 432, 2.55], [6935, 2, 223, 4.7], [362, 2, 111, 3.97], [141, 2, 105, 3.14], [75, 2, 97, 4.11], [1776, 1, 76, 3.22], [8672, 2, 249, 3.02], [7886, 4, 57, 2.29], [2778, 2, 105, 3.21], [6936, 2, 190, 4.83], [305, 2, 98, 3.03], [593, 2, 153, 2.98], [1777, 1, 85, 3.88], [11681, 2, 182, 6.0], [8648, 2, 150, 5.36], [151, 1, 53, 2.46], [206, 2, 94, 1.82], [88, 10, 376, 4.6], [2328, 2, 102, 3.09], [83, 2, 37, 2.04], [8650, 2, 150, 5.4], [2050, 3, 318, 3.36], [5151, 2, 17, 3.81], [412, 1, 57, 3.83], [144, 2, 102, 3.09], [2991, 3, 108, 5.79], [22247, 2, 188, 4.65], [361, 2, 134, 2.05], [57, 1, 62, 2.85], [10149, 3, 676, 4.91], [2054, 3, 407, 4.61], [417, 2, 104, 4.53], [146, 2, 102, 4.34], [3478, 2, 66, 2.59], [45, 2, 73, 4.8], [143, 2, 100, 3.0], [7004, 1, 47, 2.43], [167, 3, 152, 4.16], [12721, 2, 188, 4.08], [168, 3, 273, 3.53], [2055, 3, 313, 4.85], [74, 1, 132, 4.67], [1446, 2, 79, 2.62], [346, 1, 107, 2.96], [84, 2, 58, 1.97], [7036, 1, 85, 5.36], [335, 3, 898, 5.59], [3495, 3, 641, 3.7], [5081, 2, 128, 3.15], [13028, 3, 99, 3.08], [8649, 2, 150, 5.12], [12870, 1, 92, 6.0], [410, 1, 72, 2.89], [11404, 2, 77, 2.67], [79, 1, 41, 1.5], [96, 11, 567, 2.96], [3889, 1, 84, 4.04], [145, 2, 130, 2.51], [5208, 3, 391, 2.1], [3893, 1, 84, 3.33], [1492, 1, 25, 2.86], [5812, 3, 391, 4.28]]</t>
-  </si>
-  <si>
-    <t>[[589, 2, 6, 0.2], [88, 10, 10, 0.19], [8915, 2, 5, 0.2], [2327, 2, 4, 0.52], [2778, 2, 5, 0.2], [305, 2, 5, 0.45], [6935, 2, 6, 1.69], [2328, 2, 4, 0.26], [6936, 2, 5, 1.66], [326, 2, 5, 1.22], [8648, 2, 4, 1.65], [8650, 2, 5, 2.03], [1446, 2, 4, 0.2], [7004, 1, 4, 0.74], [2049, 3, 6, 0.21], [205, 2, 4, 0.37], [144, 2, 5, 1.04], [143, 2, 4, 1.44], [10, 2, 5, 0.42], [94, 4, 4, 0.2], [7036, 1, 4, 1.2], [3893, 1, 4, 0.2], [1124, 2, 4, 0.79], [146, 2, 5, 1.07], [2055, 3, 5, 0.2], [206, 2, 5, 0.2], [5208, 3, 5, 0.19], [3891, 1, 4, 0.2], [75, 2, 5, 1.24], [362, 2, 4, 0.52], [7886, 4, 6, 0.44], [12224, 1, 4, 0.46], [3889, 1, 5, 0.2], [21793, 1, 4, 0.41], [2054, 3, 4, 0.49], [3980, 4, 6, 1.21], [7005, 1, 4, 1.08], [7084, 3, 4, 1.57], [12870, 1, 4, 2.18], [10149, 3, 13, 1.7], [2050, 3, 5, 0.56], [145, 2, 4, 1.5], [8672, 2, 5, 1.19], [2912, 1, 4, 1.58], [5165, 1, 4, 2.3], [998, 2, 4, 0.31], [20927, 1, 4, 1.76], [9760, 29, 4, 0.2], [997, 2, 4, 0.41], [1886, 2, 4, 0.62], [2436, 4, 4, 0.56], [7887, 4, 4, 0.97], [3, 2, 4, 0.2], [2424, 80, 4, 0.86], [6158, 2, 4, 0.44], [229, 1, 4, 1.05], [142, 2, 4, 0.36], [3495, 3, 13, 0.92], [955, 2, 4, 0.54], [346, 3, 4, 0.48], [5076, 1, 4, 0.89], [74, 1, 4, 3.27], [5165, 2, 5, 2.22], [11953, 1, 4, 0.51], [11954, 1, 4, 0.45], [11770, 1, 4, 0.2], [996, 2, 4, 0.74], [12721, 2, 4, 0.66], [9491, 21, 12, 0.22], [22316, 3, 4, 0.6], [1492, 1, 4, 0.2], [9372, 1, 4, 0.59], [11772, 1, 4, 0.2], [7573, 1, 9, 2.45], [2912, 2, 7, 2.11], [2423, 80, 5, 1.47], [5584, 3, 4, 2.8], [6497, 1, 4, 0.49], [2438, 2, 5, 2.15], [12229, 2, 4, 0.49], [3975, 4, 5, 1.26], [346, 1, 4, 0.37], [5209, 3, 5, 0.19], [5434, 1, 4, 1.33], [9082, 3, 19, 0.83], [823, 1, 4, 0.44], [10407, 10, 7, 1.18], [12764, 2, 8, 0.23], [4253, 1, 4, 0.2], [1622, 1, 4, 0.2], [11812, 1, 4, 0.2], [6496, 1, 4, 0.37], [2424, 29, 4, 0.86], [10388, 2, 4, 0.92], [5946, 1, 4, 0.84], [3900, 3, 4, 1.81], [8676, 2, 4, 1.22], [1339, 3, 10, 0.42], [1703, 2, 4, 0.83], [11490, 1, 4, 0.39], [2805, 137, 4, 1.33], [24257, 1, 4, 0.48], [13893, 2, 4, 1.17], [6097, 80, 4, 0.81], [37, 1, 4, 1.54], [6805, 1, 5, 0.2], [7567, 3, 4, 1.58], [22247, 2, 4, 1.31], [1414, 15, 4, 0.42], [9784, 1, 4, 0.99], [8635, 3, 4, 1.36], [11814, 1, 4, 0.48], [38, 1, 4, 1.16], [35, 1, 4, 1.54], [95, 3, 15, 0.19], [1274, 1, 4, 0.2], [23611, 3, 5, 0.42], [10386, 2, 4, 0.92], [1895, 3, 4, 1.83], [8104, 1, 4, 1.38], [788, 2, 4, 0.45], [12212, 29, 4, 0.47], [413, 1, 4, 0.66], [3979, 3, 10, 0.19], [8283, 2, 5, 0.68], [114, 3, 4, 1.53], [10780, 10, 4, 2.11], [12979, 25, 7, 0.72], [8274, 3, 4, 0.87], [76, 2, 4, 0.47], [8659, 1, 4, 0.41], [9065, 2, 4, 0.84], [12501, 1, 4, 1.24], [440, 3, 4, 1.25], [4232, 80, 4, 1.82], [418, 2, 4, 0.54], [19931, 1, 4, 1.26], [83, 2, 4, 0.44], [589, 2, 108, 3.51], [88, 10, 526, 2.5], [8915, 2, 160, 2.94], [2327, 2, 107, 3.59], [2778, 2, 112, 3.56], [305, 2, 104, 3.46], [6935, 2, 198, 6.0], [2328, 2, 107, 4.03], [6936, 2, 198, 5.9], [326, 2, 81, 4.44], [8648, 2, 159, 5.71], [8650, 2, 159, 6.0], [2049, 3, 324, 3.34], [144, 2, 51, 4.06], [94, 4, 85, 4.74], [7036, 1, 91, 5.66], [3893, 1, 89, 3.35], [1124, 2, 172, 3.16], [146, 2, 107, 4.24], [2055, 3, 377, 2.57], [206, 2, 25, 2.22], [5208, 3, 326, 2.1], [3891, 1, 89, 3.4], [75, 2, 122, 4.52], [362, 2, 82, 3.59], [12224, 1, 154, 2.31], [3889, 1, 89, 4.01], [21793, 1, 222, 2.45], [2054, 3, 111, 2.25], [3980, 4, 403, 4.52], [12870, 1, 97, 5.83], [10149, 3, 625, 4.75], [2050, 3, 135, 2.57], [145, 2, 52, 4.06], [8672, 2, 199, 6.0], [2912, 1, 43, 4.46], [5165, 1, 43, 5.85], [998, 2, 169, 4.14], [9760, 29, 51, 3.87], [997, 2, 222, 3.07], [1886, 2, 144, 2.61], [2436, 4, 108, 2.5], [3, 2, 102, 3.96], [2424, 80, 156, 4.21], [6158, 2, 241, 2.98], [229, 1, 60, 3.53], [142, 2, 110, 3.29], [3495, 3, 676, 4.23], [955, 2, 100, 2.46], [346, 3, 568, 2.35], [5076, 1, 120, 3.44], [74, 1, 164, 6.0], [5165, 2, 344, 5.45], [11953, 1, 185, 2.4], [11954, 1, 187, 2.29], [11770, 1, 154, 3.85], [996, 2, 222, 2.84], [12721, 2, 262, 2.87], [9491, 21, 1499, 3.56], [22316, 3, 291, 2.58], [1492, 1, 27, 3.61], [9372, 1, 212, 4.51]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 6, 1.34], [305, 2, 4, 0.51], [2778, 2, 5, 0.2], [205, 2, 5, 0.2], [6936, 2, 5, 1.35], [616, 2, 4, 0.45], [88, 10, 11, 0.19], [144, 2, 5, 0.47], [8648, 2, 4, 0.46], [8915, 2, 5, 0.42], [326, 2, 5, 0.7], [589, 2, 5, 0.2], [11681, 2, 5, 1.37], [7036, 1, 4, 1.23], [8650, 2, 5, 0.96], [2327, 2, 5, 0.2], [593, 2, 5, 0.52], [3893, 1, 5, 0.2], [141, 2, 5, 0.53], [7004, 1, 4, 1.01], [3840, 1, 4, 0.39], [3891, 1, 4, 0.53], [2050, 3, 5, 1.69], [146, 2, 5, 1.07], [3889, 1, 4, 0.53], [2055, 3, 4, 1.73], [143, 2, 5, 0.51], [3980, 4, 5, 1.2], [10, 2, 4, 0.67], [7885, 4, 5, 0.2], [8672, 2, 5, 0.73], [2054, 3, 5, 1.86], [7886, 4, 4, 0.9], [12870, 1, 5, 0.92], [2057, 3, 5, 1.78], [5165, 1, 4, 2.3], [3975, 4, 4, 1.26], [159, 3, 5, 0.58], [7084, 3, 4, 0.28], [145, 2, 4, 1.03], [523, 2, 4, 1.03], [21793, 1, 4, 0.41], [75, 2, 4, 0.46], [7005, 1, 4, 0.74], [3981, 3, 13, 1.15], [9760, 29, 5, 0.2], [3982, 3, 11, 1.18], [20927, 1, 4, 0.67], [6158, 2, 6, 0.2], [33, 1, 4, 1.33], [997, 2, 5, 1.18], [214, 3, 11, 0.2], [5165, 2, 5, 2.22], [2912, 1, 4, 1.58], [7887, 4, 5, 1.45], [22316, 3, 5, 0.51], [11953, 1, 5, 0.2], [229, 1, 4, 1.2], [998, 2, 4, 0.67], [35, 1, 4, 1.33], [346, 3, 5, 0.21], [6497, 1, 4, 0.45], [389, 4, 5, 0.88], [996, 2, 6, 1.47], [1492, 1, 4, 0.7], [972, 3, 4, 1.51], [955, 2, 4, 0.73], [11490, 1, 4, 0.53], [6496, 1, 5, 0.55], [74, 1, 5, 0.62], [2336, 3, 5, 0.46], [22317, 3, 5, 0.51], [1413, 15, 4, 0.2], [4176, 4, 5, 1.31], [2912, 2, 5, 1.53], [336, 15, 5, 0.37], [12212, 29, 4, 0.5], [192, 3, 9, 1.01], [7573, 1, 5, 0.97], [8677, 3, 5, 0.9], [39, 1, 4, 0.51], [37, 1, 4, 0.66], [11085, 2, 5, 1.76], [201, 3, 4, 0.51], [345, 3, 4, 0.51], [1277, 1, 4, 0.65], [8676, 2, 4, 0.98], [1274, 1, 4, 0.67], [21269, 3, 4, 2.99], [13023, 3, 4, 1.26], [12271, 2, 4, 0.7], [6494, 1, 4, 0.2], [10388, 2, 5, 1.14], [3, 2, 5, 0.46], [10408, 10, 6, 1.64], [202, 2, 4, 0.44], [10936, 2, 4, 1.7], [36, 1, 4, 1.16], [2805, 137, 5, 0.47], [3577, 25, 4, 0.59], [9, 1, 4, 0.5], [5812, 3, 4, 0.51], [11489, 1, 4, 0.5], [11812, 1, 4, 0.2], [1414, 15, 4, 0.45], [20498, 3, 5, 0.99], [3048, 3, 4, 1.42], [9691, 1, 4, 1.25], [8675, 2, 4, 1.02], [9372, 1, 4, 1.35], [346, 1, 5, 0.2], [13928, 1, 4, 0.55], [12225, 1, 4, 1.14], [10386, 2, 4, 0.99], [12764, 2, 6, 0.35], [13893, 2, 4, 1.13], [13280, 1, 4, 0.59], [11814, 1, 4, 0.2], [8898, 3, 4, 2.31], [11089, 1, 4, 0.38], [10407, 10, 6, 1.31], [3576, 25, 4, 0.51], [491, 10, 6, 0.69], [13035, 3, 4, 1.32], [972, 1, 4, 0.5], [9069, 1, 4, 0.74], [10939, 2, 4, 1.93], [8659, 1, 4, 1.01], [19931, 1, 5, 0.76], [11087, 2, 4, 1.27], [2438, 2, 5, 1.87], [958, 2, 4, 0.47], [3577, 29, 4, 0.52], [23611, 3, 5, 0.5], [1523, 1, 4, 1.08], [6935, 2, 223, 5.26], [305, 2, 119, 3.38], [2778, 2, 127, 3.51], [205, 2, 39, 3.38], [6936, 2, 223, 5.64], [616, 2, 106, 2.23], [88, 10, 462, 3.29], [144, 2, 35, 3.5], [8648, 2, 185, 5.15], [8915, 2, 139, 2.04], [326, 2, 87, 3.3], [589, 2, 124, 3.05], [11681, 2, 222, 5.79], [7036, 1, 104, 4.72], [8650, 2, 185, 4.92], [2327, 2, 123, 3.43], [593, 2, 186, 3.67], [3893, 1, 97, 2.69], [141, 2, 125, 4.03], [7004, 1, 57, 3.23], [3840, 1, 41, 1.53], [3891, 1, 120, 2.38], [2050, 3, 374, 5.77], [146, 2, 123, 4.01], [3889, 1, 120, 2.38], [2055, 3, 374, 5.86], [143, 2, 120, 3.39], [3980, 4, 391, 4.8], [10, 2, 101, 2.65], [8672, 2, 232, 5.13], [2054, 3, 374, 6.0], [12870, 1, 112, 6.0], [2057, 3, 374, 5.97], [5165, 1, 45, 5.79], [3975, 4, 391, 4.93], [159, 3, 682, 2.38], [7084, 3, 105, 3.88], [145, 2, 54, 3.93], [523, 2, 125, 3.5], [21793, 1, 230, 2.38], [75, 2, 141, 2.25], [7005, 1, 76, 2.78], [3981, 3, 1310, 4.44], [9760, 29, 58, 3.31], [3982, 3, 641, 4.81], [20927, 1, 21, 3.02], [6158, 2, 63, 3.69], [997, 2, 194, 6.0], [214, 3, 194, 2.12], [5165, 2, 357, 5.27], [2912, 1, 45, 4.47], [22316, 3, 233, 2.92], [11953, 1, 49, 2.84], [229, 1, 62, 3.67], [998, 2, 143, 5.74], [346, 3, 457, 2.85], [6497, 1, 36, 2.23], [389, 4, 166, 4.21], [996, 2, 194, 6.0], [1492, 1, 36, 2.84], [955, 2, 102, 2.77], [11490, 1, 104, 2.38], [6496, 1, 30, 3.0], [74, 1, 164, 4.25], [2336, 3, 557, 2.18]]</t>
-  </si>
-  <si>
-    <t>[[141, 2, 4, 0.2], [2328, 2, 5, 0.2], [8650, 2, 4, 1.46], [130, 1, 5, 0.45], [2327, 2, 5, 0.2], [589, 2, 6, 0.2], [8672, 2, 6, 0.41], [326, 2, 4, 1.62], [6935, 2, 9, 1.31], [206, 2, 4, 0.2], [142, 2, 5, 0.2], [11837, 2, 4, 0.55], [11838, 2, 5, 0.2], [6936, 2, 4, 1.59], [12721, 2, 5, 0.48], [8915, 2, 5, 0.2], [2049, 3, 11, 0.21], [1446, 2, 4, 0.2], [2778, 2, 6, 0.2], [8676, 2, 4, 0.52], [615, 2, 4, 0.44], [305, 2, 5, 0.98], [593, 2, 5, 0.48], [616, 2, 4, 0.45], [21793, 1, 4, 0.99], [413, 1, 4, 0.89], [11835, 2, 4, 0.55], [411, 2, 4, 0.2], [412, 1, 4, 0.5], [10574, 3, 6, 1.75], [12349, 1, 4, 0.52], [8675, 2, 6, 0.73], [145, 2, 6, 0.49], [8673, 2, 5, 0.47], [143, 2, 4, 0.57], [6158, 2, 4, 0.88], [151, 1, 4, 0.45], [11836, 2, 5, 0.2], [10149, 3, 13, 0.75], [3495, 3, 13, 0.85], [2050, 3, 5, 0.34], [2055, 3, 5, 0.41], [146, 2, 4, 0.79], [2054, 3, 5, 0.51], [75, 2, 5, 1.67], [7885, 4, 5, 0.94], [88, 10, 8, 0.95], [416, 1, 4, 0.8], [144, 2, 4, 0.54], [7084, 3, 4, 0.55], [2859, 15, 4, 0.41], [21798, 1, 4, 0.59], [10993, 2, 4, 0.39], [346, 3, 5, 0.46], [335, 3, 10, 0.87], [2424, 29, 4, 2.32], [7705, 2, 4, 1.05], [2423, 80, 4, 0.58], [2423, 29, 4, 0.58], [3848, 2, 4, 1.07], [7704, 2, 4, 1.05], [5165, 1, 4, 2.3], [13023, 3, 6, 1.51], [346, 1, 4, 0.35], [1519, 3, 10, 0.23], [201, 3, 4, 1.01], [2424, 80, 4, 2.32], [60, 3, 5, 1.93], [1414, 15, 4, 0.41], [410, 1, 4, 0.38], [6494, 1, 4, 0.47], [345, 3, 4, 1.04], [13034, 3, 5, 1.37], [11490, 1, 4, 0.46], [5208, 3, 8, 0.48], [11770, 1, 4, 0.39], [432, 3, 5, 2.04], [3430, 15, 4, 0.35], [11954, 1, 4, 0.68], [2703, 3, 4, 0.83], [6952, 1, 4, 0.48], [7004, 1, 4, 0.38], [7706, 2, 4, 0.55], [20927, 1, 4, 0.7], [3429, 15, 4, 0.42], [114, 3, 4, 0.2], [308, 1, 5, 1.49], [7886, 4, 6, 0.44], [1886, 2, 4, 0.41], [105, 3, 4, 0.2], [11811, 1, 4, 0.38], [13928, 1, 4, 0.55], [2331, 1, 4, 0.52], [11089, 1, 4, 0.42], [94, 4, 4, 0.79], [3981, 3, 8, 0.51], [944, 15, 4, 0.41], [10407, 10, 6, 1.14], [5584, 3, 4, 2.72], [1490, 1, 4, 0.87], [8274, 3, 4, 2.02], [11674, 1, 4, 0.87], [3, 2, 4, 0.41], [22317, 3, 5, 0.41], [13033, 3, 4, 0.4], [952, 4, 4, 1.77], [10410, 10, 6, 1.18], [9690, 1, 4, 0.71], [7708, 2, 4, 1.05], [9342, 2, 4, 0.49], [1339, 3, 10, 0.42], [10409, 10, 6, 1.15], [202, 2, 4, 0.38], [21003, 2, 4, 0.72], [8898, 3, 4, 0.71], [10398, 2, 4, 0.87], [5812, 3, 4, 1.51], [957, 2, 4, 0.37], [95, 3, 8, 0.72], [963, 3, 4, 0.92], [823, 1, 4, 1.64], [6497, 1, 4, 0.44], [20969, 3, 4, 0.86], [10516, 3, 9, 0.37], [9082, 3, 15, 0.83], [186, 3, 7, 0.54], [20196, 2, 4, 0.72], [11677, 1, 4, 0.78], [4253, 1, 4, 0.73], [3980, 4, 5, 1.26], [7703, 2, 4, 1.05], [20555, 2, 4, 0.5], [3478, 2, 4, 0.77], [20682, 1, 4, 0.53], [6630, 3, 4, 1.83], [5165, 2, 5, 2.22], [8897, 3, 4, 0.71], [141, 2, 114, 3.66], [2328, 2, 109, 4.64], [8650, 2, 164, 5.1], [2327, 2, 109, 4.61], [589, 2, 119, 3.73], [8672, 2, 208, 4.69], [326, 2, 83, 4.69], [6935, 2, 204, 6.0], [206, 2, 29, 1.69], [142, 2, 114, 3.83], [11837, 2, 247, 2.64], [11838, 2, 193, 3.8], [6936, 2, 204, 5.36], [12721, 2, 205, 4.24], [1446, 2, 85, 2.42], [2778, 2, 136, 3.62], [8676, 2, 264, 2.57], [615, 2, 102, 2.42], [305, 2, 39, 3.81], [593, 2, 211, 2.41], [616, 2, 102, 2.44], [21793, 1, 214, 3.75], [413, 1, 79, 3.28], [11835, 2, 247, 2.64], [411, 2, 48, 2.4], [412, 1, 77, 3.49], [10574, 3, 362, 5.28], [12349, 1, 533, 3.29], [8675, 2, 208, 4.72], [145, 2, 99, 4.41], [8673, 2, 244, 5.19], [143, 2, 136, 2.67], [6158, 2, 239, 3.75], [151, 1, 61, 2.48], [11836, 2, 193, 3.64], [10149, 3, 807, 3.07], [3495, 3, 886, 3.08], [2050, 3, 349, 2.92], [146, 2, 138, 4.38], [2054, 3, 137, 2.97], [75, 2, 104, 5.49], [88, 10, 515, 4.9], [416, 1, 79, 3.11], [144, 2, 136, 2.61], [7084, 3, 119, 3.58], [2859, 15, 63, 3.18], [21798, 1, 128, 2.72], [10993, 2, 14, 1.67], [346, 3, 566, 2.39], [2424, 29, 31, 6.0], [7705, 2, 163, 4.19], [2423, 80, 169, 3.13], [2423, 29, 34, 3.13], [3848, 2, 154, 3.64], [7704, 2, 163, 4.19], [5165, 1, 43, 6.0], [13023, 3, 543, 4.34], [346, 1, 142, 2.24], [201, 3, 216, 5.45], [2424, 80, 153, 6.0], [1414, 15, 91, 2.36], [6494, 1, 47, 2.47], [345, 3, 277, 4.39]]</t>
-  </si>
-  <si>
-    <t>[[2778, 2, 6, 0.2], [6935, 2, 7, 1.3], [6936, 2, 4, 1.17], [305, 2, 4, 0.2], [8672, 2, 5, 0.41], [615, 2, 4, 0.2], [145, 2, 5, 0.49], [12721, 2, 5, 0.72], [2327, 2, 4, 0.2], [143, 2, 4, 1.01], [146, 2, 4, 1.12], [2328, 2, 4, 0.2], [11681, 2, 5, 1.31], [5491, 2, 4, 0.2], [205, 2, 5, 0.37], [8650, 2, 4, 1.03], [11835, 2, 4, 0.55], [144, 2, 5, 1.03], [8673, 2, 5, 0.73], [8676, 2, 4, 0.6], [308, 1, 5, 0.73], [417, 2, 4, 0.47], [11837, 2, 4, 0.55], [3, 2, 4, 0.66], [6097, 80, 5, 2.36], [22247, 2, 5, 1.21], [6497, 1, 4, 0.2], [11836, 2, 5, 0.2], [990, 2, 4, 0.27], [593, 2, 5, 0.2], [6097, 29, 4, 2.86], [523, 2, 4, 0.66], [6098, 80, 4, 2.09], [11739, 2, 4, 0.2], [88, 10, 10, 0.19], [12350, 1, 4, 3.59], [8915, 2, 4, 0.2], [2054, 3, 4, 0.62], [326, 2, 4, 1.35], [13260, 29, 4, 0.73], [3429, 15, 4, 0.36], [75, 2, 4, 0.86], [336, 15, 4, 0.39], [1413, 15, 5, 0.2], [1492, 1, 4, 1.09], [411, 2, 4, 0.76], [6098, 29, 4, 3.09], [1050, 2, 4, 0.2], [1339, 3, 10, 0.42], [2422, 80, 4, 1.05], [6496, 1, 5, 1.05], [214, 3, 9, 0.54], [947, 15, 4, 0.44], [7704, 2, 4, 1.35], [10149, 3, 13, 0.88], [346, 1, 4, 0.35], [2859, 15, 4, 0.97], [346, 3, 5, 0.46], [345, 3, 4, 0.51], [11738, 2, 4, 0.8], [13264, 29, 5, 0.52], [13258, 29, 4, 0.7], [1490, 1, 4, 1.45], [1243, 2, 4, 0.61], [7004, 1, 5, 0.81], [229, 1, 4, 0.69], [5208, 3, 10, 0.54], [201, 3, 4, 1.05], [22558, 3, 6, 0.2], [10407, 10, 6, 1.14], [13259, 29, 4, 0.48], [2331, 1, 4, 0.52], [432, 3, 4, 0.9], [7705, 2, 4, 1.35], [12229, 2, 4, 0.45], [7706, 2, 4, 1.35], [418, 2, 4, 0.5], [114, 3, 4, 0.41], [957, 2, 5, 1.01], [13928, 1, 4, 0.55], [1163, 3, 4, 1.45], [3478, 2, 4, 0.77], [11844, 2, 4, 0.63], [8938, 2, 4, 0.43], [7036, 1, 4, 0.43], [9784, 1, 4, 1.01], [11490, 1, 4, 0.53], [11687, 2, 4, 0.79], [11404, 2, 4, 0.48], [2703, 3, 4, 0.83], [410, 1, 4, 0.63], [12348, 1, 4, 0.51], [13258, 25, 4, 0.66], [1886, 2, 4, 0.35], [19687, 1, 4, 1.21], [9065, 2, 4, 0.84], [94, 4, 4, 0.6], [12870, 1, 4, 0.94], [413, 1, 4, 1.68], [11690, 2, 4, 0.52], [956, 2, 4, 0.53], [7708, 2, 4, 1.35], [11161, 1, 5, 1.2], [11159, 1, 7, 0.84], [9760, 29, 4, 0.85], [11689, 2, 4, 0.77], [22125, 2, 4, 0.36], [5976, 1, 4, 1.12], [12373, 1, 5, 0.45], [105, 3, 4, 0.41], [21781, 2, 4, 0.47], [2991, 3, 4, 2.31], [1274, 1, 4, 1.97], [7005, 1, 4, 0.81], [5584, 3, 4, 2.72], [2805, 137, 5, 2.01], [9209, 29, 4, 0.73], [11811, 1, 4, 0.38], [3495, 3, 13, 0.85], [13259, 25, 4, 0.48], [11489, 1, 4, 1.02], [4253, 1, 4, 0.23], [8285, 2, 5, 0.49], [20927, 1, 4, 0.7], [8600, 1, 4, 0.86], [9372, 1, 4, 1.74], [247, 1, 4, 0.73], [10147, 1, 4, 0.36], [12764, 2, 5, 0.43], [21269, 3, 4, 1.4], [3722, 25, 5, 0.38], [9491, 21, 10, 1.69], [7007, 1, 4, 0.81], [11887, 2, 4, 0.57], [5076, 1, 4, 1.14], [6360, 10, 9, 0.65], [2778, 2, 133, 3.36], [6935, 2, 237, 6.0], [6936, 2, 242, 5.18], [305, 2, 107, 3.74], [8672, 2, 265, 3.47], [615, 2, 113, 2.8], [145, 2, 109, 3.69], [12721, 2, 204, 4.47], [2327, 2, 109, 4.61], [143, 2, 39, 4.22], [146, 2, 109, 4.42], [2328, 2, 109, 4.64], [11681, 2, 260, 5.33], [5491, 2, 100, 2.18], [205, 2, 29, 3.53], [8650, 2, 163, 6.0], [11835, 2, 247, 2.64], [144, 2, 115, 4.21], [8673, 2, 208, 5.73], [8676, 2, 208, 3.88], [308, 1, 159, 3.34], [417, 2, 121, 4.17], [11837, 2, 247, 2.64], [3, 2, 88, 3.99], [6097, 80, 49, 6.0], [22247, 2, 204, 5.02], [6497, 1, 29, 3.63], [11836, 2, 193, 3.72], [990, 2, 40, 3.84], [593, 2, 179, 3.67], [6097, 29, 25, 6.0], [523, 2, 114, 4.01], [11739, 2, 23, 3.32], [88, 10, 406, 5.3], [12350, 1, 555, 6.0], [8915, 2, 51, 2.36], [2054, 3, 126, 3.1], [326, 2, 79, 4.17], [13260, 29, 67, 3.85], [75, 2, 133, 3.41], [336, 15, 29, 1.67], [1413, 15, 26, 2.41], [1492, 1, 15, 3.32], [411, 2, 29, 2.38], [1339, 3, 461, 1.67], [2422, 80, 168, 3.75], [6496, 1, 34, 4.35], [214, 3, 584, 4.28], [947, 15, 36, 3.13], [7704, 2, 162, 4.45], [10149, 3, 795, 3.76], [346, 1, 142, 2.24], [2859, 15, 59, 3.98], [346, 3, 566, 2.39], [345, 3, 276, 4.24], [13264, 29, 63, 3.28], [13258, 29, 36, 4.07], [1490, 1, 45, 4.44], [229, 1, 75, 3.64], [5208, 3, 148, 3.08], [201, 3, 276, 4.63], [22558, 3, 347, 4.02], [10407, 10, 1103, 3.67], [13259, 29, 32, 3.02]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 5, 0.91], [141, 2, 4, 0.48], [362, 2, 4, 0.97], [361, 2, 5, 0.59], [12721, 2, 6, 1.21], [6935, 2, 8, 1.55], [206, 2, 4, 0.2], [8676, 2, 5, 0.6], [8675, 2, 5, 0.73], [2049, 3, 12, 0.21], [3, 2, 6, 0.61], [22247, 2, 5, 1.0], [305, 2, 5, 0.98], [523, 2, 4, 0.66], [8650, 2, 5, 1.27], [11838, 2, 4, 0.41], [8648, 2, 5, 0.88], [2328, 2, 4, 1.16], [2776, 2, 5, 0.2], [11739, 2, 4, 0.2], [2327, 2, 4, 0.64], [11837, 2, 4, 0.45], [411, 2, 4, 0.2], [12352, 1, 4, 2.59], [589, 2, 5, 0.2], [412, 1, 4, 0.64], [143, 2, 4, 0.51], [11835, 2, 4, 0.49], [146, 2, 4, 0.38], [583, 2, 4, 0.81], [6097, 80, 4, 2.61], [326, 2, 5, 0.41], [10149, 3, 13, 0.75], [145, 2, 4, 0.38], [11836, 2, 5, 0.54], [6097, 29, 5, 0.66], [144, 2, 4, 0.49], [10574, 3, 5, 0.6], [75, 2, 4, 0.87], [12344, 1, 4, 1.35], [6496, 1, 4, 1.37], [6494, 1, 4, 0.47], [2054, 3, 4, 1.21], [1413, 15, 4, 0.46], [6098, 80, 4, 0.83], [8915, 2, 5, 0.2], [1243, 2, 5, 0.23], [1886, 2, 6, 0.2], [21793, 1, 4, 0.99], [944, 15, 4, 0.2], [6098, 29, 4, 1.33], [1492, 1, 4, 0.47], [247, 1, 4, 1.91], [3429, 15, 4, 0.35], [2859, 15, 4, 0.39], [1490, 1, 4, 0.44], [1414, 15, 4, 0.35], [201, 3, 4, 0.44], [6158, 2, 4, 0.88], [3478, 2, 4, 0.77], [308, 1, 5, 0.29], [13928, 1, 4, 0.55], [336, 15, 4, 0.39], [7084, 3, 4, 0.55], [11489, 1, 4, 0.56], [3982, 3, 12, 0.19], [1703, 2, 4, 0.7], [12526, 2, 4, 1.05], [9342, 2, 4, 0.49], [5812, 3, 5, 2.0], [186, 3, 7, 0.54], [11490, 1, 4, 0.48], [4253, 1, 4, 0.73], [94, 4, 4, 0.39], [5813, 3, 6, 2.0], [1050, 2, 4, 0.36], [10398, 2, 4, 0.37], [5811, 3, 5, 1.48], [2821, 3, 8, 0.5], [5939, 3, 4, 0.47], [8599, 1, 4, 1.23], [11811, 1, 4, 0.38], [229, 1, 4, 1.71], [3980, 4, 5, 1.26], [8943, 3, 4, 0.52], [11771, 1, 4, 0.68], [8898, 3, 5, 3.26], [1339, 3, 10, 0.42], [3495, 3, 13, 0.85], [2991, 3, 5, 1.5], [1049, 2, 4, 0.36], [12764, 2, 5, 0.43], [346, 3, 5, 0.46], [13928, 2, 4, 0.55], [19687, 1, 4, 1.21], [192, 3, 7, 0.76], [7036, 1, 4, 0.43], [9690, 1, 4, 0.8], [22573, 2, 4, 0.99], [5584, 3, 4, 2.72], [10124, 1, 4, 2.17], [105, 3, 4, 0.38], [8897, 3, 5, 3.26], [8274, 3, 4, 1.73], [18964, 1, 4, 0.79], [11886, 2, 4, 0.75], [10147, 1, 4, 0.36], [3334, 5, 4, 2.01], [1701, 2, 4, 0.55], [1277, 1, 4, 0.44], [1523, 1, 4, 1.04], [20927, 1, 4, 0.64], [4001, 3, 15, 0.96], [8635, 3, 4, 1.73], [8286, 2, 5, 0.36], [1274, 1, 4, 2.04], [23275, 2, 4, 0.99], [11678, 1, 4, 0.38], [10516, 3, 9, 0.86], [13260, 29, 4, 0.73], [23031, 3, 4, 1.38], [3984, 3, 5, 0.62], [11677, 1, 4, 0.78], [3979, 3, 5, 0.88], [9065, 2, 4, 0.84], [45, 2, 4, 2.19], [21269, 3, 4, 1.4], [10181, 26, 5, 0.46], [346, 1, 4, 0.35], [9373, 5, 4, 0.36], [11690, 2, 4, 0.52], [973, 3, 5, 0.65], [9069, 1, 4, 0.62], [5976, 1, 4, 1.12], [7005, 1, 4, 0.74], [8285, 2, 5, 0.49], [8672, 2, 208, 4.69], [141, 2, 114, 3.66], [362, 2, 75, 3.31], [361, 2, 82, 3.87], [12721, 2, 75, 5.58], [6935, 2, 203, 6.0], [206, 2, 29, 1.69], [8676, 2, 208, 3.88], [8675, 2, 208, 4.17], [2049, 3, 290, 2.08], [3, 2, 88, 3.91], [22247, 2, 206, 4.61], [305, 2, 107, 3.67], [523, 2, 114, 4.01], [8650, 2, 164, 4.93], [11838, 2, 246, 2.36], [8648, 2, 164, 4.8], [2328, 2, 139, 3.8], [2776, 2, 114, 3.67], [11739, 2, 25, 2.88], [2327, 2, 130, 3.76], [11837, 2, 229, 3.15], [411, 2, 61, 3.48], [12352, 1, 560, 6.0], [412, 1, 77, 3.63], [143, 2, 136, 2.55], [11835, 2, 229, 3.22], [146, 2, 138, 3.59], [583, 2, 60, 3.03], [6097, 80, 48, 6.0], [326, 2, 79, 3.81], [10149, 3, 807, 3.07], [145, 2, 138, 3.28], [11836, 2, 229, 3.32], [6097, 29, 29, 3.55], [144, 2, 136, 2.51], [10574, 3, 460, 4.43], [75, 2, 134, 3.24], [12344, 1, 560, 4.17], [6496, 1, 36, 4.21], [6494, 1, 47, 2.47], [1413, 15, 91, 2.46], [6098, 80, 69, 3.79], [1243, 2, 26, 3.69], [1886, 2, 114, 3.71], [21793, 1, 214, 3.75], [944, 15, 12, 3.65], [6098, 29, 33, 4.49], [1492, 1, 30, 2.43], [247, 1, 80, 5.25], [2859, 15, 63, 2.32], [1490, 1, 47, 2.42], [1414, 15, 91, 2.24], [201, 3, 281, 2.42], [6158, 2, 239, 3.75], [3478, 2, 40, 2.86], [308, 1, 148, 4.19], [13928, 1, 43, 4.47], [336, 15, 29, 1.67], [7084, 3, 119, 3.58], [3982, 3, 698, 2.93], [1703, 2, 152, 3.14], [12526, 2, 253, 3.59], [9342, 2, 122, 1.85]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 8, 0.97], [305, 2, 4, 0.2], [2328, 2, 5, 0.2], [8672, 2, 7, 0.2], [8650, 2, 4, 0.46], [248, 1, 5, 0.2], [143, 2, 5, 0.51], [6936, 2, 4, 1.26], [145, 2, 4, 0.5], [11837, 2, 4, 0.45], [205, 2, 4, 0.37], [11681, 2, 5, 1.2], [417, 2, 4, 0.54], [589, 2, 4, 0.36], [75, 2, 5, 0.97], [146, 2, 4, 0.57], [1124, 2, 8, 0.2], [12721, 2, 5, 0.48], [8673, 2, 5, 0.2], [206, 2, 4, 0.2], [8853, 2, 4, 1.46], [326, 2, 5, 0.85], [1005, 2, 4, 0.2], [11835, 2, 5, 0.36], [144, 2, 4, 0.46], [8915, 2, 5, 0.89], [308, 1, 5, 0.73], [88, 10, 10, 0.19], [434, 2, 5, 0.2], [11739, 2, 5, 0.89], [6158, 2, 6, 0.2], [11234, 2, 4, 0.2], [2424, 29, 4, 2.32], [11738, 2, 4, 0.2], [2423, 29, 4, 0.58], [7704, 2, 4, 1.35], [11836, 2, 4, 0.2], [2424, 80, 4, 2.32], [7705, 2, 4, 1.65], [1413, 15, 4, 0.2], [2054, 3, 4, 0.65], [7706, 2, 4, 1.65], [10574, 3, 5, 1.75], [2423, 80, 4, 0.58], [3, 2, 4, 0.54], [412, 1, 4, 0.64], [2859, 15, 4, 1.87], [3478, 2, 4, 1.28], [12720, 2, 4, 0.98], [10149, 3, 13, 1.48], [74, 1, 4, 1.63], [12343, 1, 4, 1.57], [346, 3, 5, 0.46], [11919, 1, 4, 0.9], [1339, 3, 10, 0.42], [60, 3, 5, 1.7], [6497, 1, 4, 0.44], [346, 1, 4, 0.35], [418, 2, 4, 0.6], [13928, 1, 4, 0.55], [411, 2, 4, 0.37], [13034, 3, 6, 0.65], [18964, 1, 4, 0.79], [13028, 3, 4, 0.37], [11089, 1, 4, 0.42], [10993, 2, 4, 0.59], [413, 1, 4, 1.68], [13260, 29, 5, 1.17], [7036, 1, 4, 0.93], [94, 4, 5, 1.27], [6952, 1, 4, 1.59], [3891, 1, 4, 1.26], [1050, 2, 4, 0.2], [8274, 3, 4, 0.58], [14037, 3, 4, 0.96], [7707, 2, 4, 1.25], [2991, 3, 4, 2.17], [22317, 3, 8, 0.2], [21793, 1, 5, 1.94], [7708, 2, 4, 1.55], [3889, 1, 5, 2.08], [345, 3, 5, 1.26], [6630, 3, 4, 2.4], [11490, 1, 4, 0.53], [5208, 3, 8, 0.48], [1243, 2, 5, 0.45], [1490, 1, 4, 0.87], [2912, 1, 4, 1.54], [3495, 3, 13, 0.85], [563, 2, 4, 0.93], [229, 1, 4, 0.69], [20680, 1, 4, 0.92], [1049, 2, 4, 0.2], [336, 15, 4, 0.2], [6627, 3, 4, 0.2], [5940, 3, 4, 0.2], [12229, 2, 4, 0.45], [192, 3, 7, 1.24], [11581, 29, 4, 0.87], [13033, 3, 4, 0.69], [23275, 2, 4, 0.99], [2331, 1, 4, 0.64], [1274, 1, 4, 1.57], [2805, 137, 5, 1.4], [247, 1, 4, 1.55], [5165, 1, 4, 2.3], [201, 3, 4, 1.21], [8635, 3, 4, 0.59], [114, 3, 4, 1.73], [942, 3, 4, 0.25], [11914, 1, 4, 0.41], [6496, 1, 4, 1.55], [8898, 3, 5, 0.48], [6629, 3, 4, 0.47], [1703, 2, 4, 0.47], [7886, 4, 4, 0.44], [11770, 1, 4, 1.57], [5812, 3, 5, 0.5], [9372, 1, 4, 1.74], [3934, 5, 6, 0.56], [9760, 29, 4, 1.96], [202, 2, 4, 0.93], [21269, 3, 5, 0.5], [186, 3, 9, 1.23], [332, 2, 4, 0.93], [951, 4, 4, 1.5], [83, 2, 4, 0.55], [4940, 1, 4, 0.36], [10527, 3, 8, 2.22], [6360, 10, 10, 0.83], [5811, 3, 5, 0.5], [1886, 2, 4, 0.44], [21781, 2, 4, 0.47], [12373, 1, 5, 0.45], [9082, 3, 15, 0.83], [20927, 1, 4, 0.7], [5584, 3, 4, 2.72], [13498, 3, 4, 0.88], [12870, 1, 4, 1.74], [6935, 2, 204, 6.0], [305, 2, 125, 3.17], [2328, 2, 109, 4.64], [8672, 2, 208, 5.22], [8650, 2, 192, 4.6], [248, 1, 14, 1.58], [143, 2, 108, 3.72], [6936, 2, 204, 5.75], [145, 2, 110, 3.71], [11837, 2, 246, 2.45], [205, 2, 29, 3.53], [11681, 2, 261, 5.0], [417, 2, 134, 3.32], [75, 2, 106, 4.57], [146, 2, 110, 3.82], [1124, 2, 134, 4.52], [12721, 2, 205, 4.24], [8673, 2, 209, 5.48], [206, 2, 60, 3.53], [8853, 2, 204, 5.66], [326, 2, 83, 3.25], [1005, 2, 77, 4.76], [11835, 2, 229, 2.97], [144, 2, 110, 3.63], [8915, 2, 100, 3.75], [308, 1, 159, 3.34], [88, 10, 406, 5.3], [434, 2, 99, 2.42], [6158, 2, 189, 4.79], [11234, 2, 144, 3.13], [2424, 29, 31, 6.0], [2423, 29, 34, 3.13], [7704, 2, 162, 4.45], [11836, 2, 193, 3.64], [2424, 80, 153, 6.0], [7705, 2, 46, 5.39], [1413, 15, 55, 3.77], [2054, 3, 126, 2.85], [7706, 2, 46, 5.39], [10574, 3, 362, 5.43], [2423, 80, 169, 3.13], [3, 2, 87, 4.73], [412, 1, 77, 3.63], [12720, 2, 205, 4.24], [10149, 3, 801, 4.21], [74, 1, 183, 4.71], [12343, 1, 566, 4.59], [346, 3, 566, 2.39], [1339, 3, 461, 1.67], [6497, 1, 33, 3.13], [346, 1, 142, 2.24], [418, 2, 129, 2.73], [13928, 1, 43, 4.47], [411, 2, 85, 3.53], [13034, 3, 508, 4.57], [18964, 1, 49, 3.09], [13028, 3, 125, 4.24], [11089, 1, 159, 2.38], [10993, 2, 14, 3.78], [413, 1, 78, 4.8], [13260, 29, 53, 4.53]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 6, 0.87], [141, 2, 4, 0.2], [589, 2, 5, 0.2], [2778, 2, 4, 0.2], [6936, 2, 5, 0.44], [2327, 2, 5, 0.64], [11681, 2, 10, 0.85], [362, 2, 4, 0.56], [8648, 2, 4, 1.08], [8650, 2, 4, 1.58], [305, 2, 4, 1.0], [326, 2, 4, 0.97], [205, 2, 4, 0.46], [2328, 2, 4, 0.39], [1446, 2, 4, 0.2], [2049, 3, 6, 0.21], [130, 1, 4, 0.2], [2775, 2, 4, 0.2], [361, 2, 5, 0.4], [8853, 2, 5, 0.94], [593, 2, 6, 0.2], [143, 2, 5, 0.51], [140, 2, 4, 0.39], [3840, 1, 4, 0.5], [523, 2, 5, 0.54], [7004, 1, 4, 0.39], [413, 1, 4, 0.66], [21793, 1, 4, 1.65], [12350, 1, 4, 0.19], [1124, 2, 4, 0.2], [151, 1, 5, 0.37], [7036, 1, 4, 1.31], [990, 2, 5, 0.2], [5165, 1, 4, 2.3], [12349, 1, 4, 1.05], [145, 2, 4, 1.39], [201, 3, 6, 0.42], [248, 1, 4, 0.2], [8089, 1, 4, 1.36], [6952, 1, 4, 1.04], [6097, 80, 4, 2.88], [2050, 3, 4, 1.21], [2055, 3, 5, 0.71], [345, 3, 6, 0.2], [144, 2, 4, 0.49], [10993, 2, 4, 0.41], [7084, 3, 4, 3.17], [11770, 1, 4, 0.47], [2057, 3, 5, 0.49], [3891, 1, 4, 0.25], [2912, 1, 4, 0.86], [5165, 2, 7, 2.22], [998, 2, 4, 0.23], [3893, 1, 4, 0.63], [9372, 1, 4, 0.98], [12870, 1, 4, 0.47], [12343, 1, 4, 1.05], [7885, 4, 4, 0.99], [2424, 80, 4, 2.15], [12351, 1, 4, 1.05], [6098, 80, 4, 1.89], [6097, 29, 4, 2.41], [20927, 1, 4, 0.36], [10574, 3, 5, 1.59], [6158, 2, 5, 0.84], [3334, 5, 4, 0.38], [12345, 1, 4, 1.05], [11089, 1, 4, 0.37], [10149, 3, 15, 1.48], [1492, 1, 4, 0.56], [2912, 2, 5, 0.7], [3889, 1, 4, 0.63], [4032, 29, 4, 0.63], [12304, 1, 4, 1.07], [972, 3, 4, 1.01], [3576, 25, 4, 0.92], [1700, 2, 4, 0.49], [411, 2, 4, 0.93], [13034, 3, 4, 1.07], [2331, 1, 4, 1.01], [11583, 29, 5, 0.2], [229, 1, 4, 2.07], [11426, 25, 4, 0.51], [5151, 2, 4, 0.93], [11490, 1, 4, 0.93], [995, 2, 4, 0.62], [3, 2, 4, 0.32], [8677, 3, 6, 1.21], [12764, 2, 5, 0.43], [2160, 68, 4, 1.02], [3478, 2, 4, 1.12], [13893, 2, 4, 1.32], [2805, 137, 4, 0.83], [3575, 25, 4, 0.6], [13023, 3, 5, 1.52], [13280, 1, 4, 1.09], [5812, 3, 5, 2.0], [6494, 1, 4, 1.48], [3577, 25, 4, 0.45], [11814, 1, 4, 0.48], [4253, 1, 4, 1.41], [11813, 1, 4, 1.53], [2438, 2, 5, 1.68], [75, 2, 4, 0.36], [9289, 29, 4, 1.08], [11404, 2, 4, 0.43], [9971, 2, 4, 0.92], [957, 2, 5, 0.91], [9967, 2, 4, 0.92], [1413, 15, 4, 0.45], [11150, 2, 5, 0.44], [22317, 3, 4, 0.44], [8283, 2, 5, 0.74], [9069, 1, 4, 0.8], [4586, 10, 11, 0.8], [5584, 3, 4, 1.38], [2878, 1, 5, 0.44], [114, 3, 4, 1.53], [9491, 21, 8, 1.43], [21697, 3, 4, 0.44], [11812, 1, 4, 0.41], [9964, 2, 4, 0.92], [9965, 2, 4, 0.92], [4076, 3, 4, 1.42], [10407, 10, 7, 1.22], [10609, 1, 4, 1.55], [336, 15, 4, 0.39], [1163, 3, 4, 1.45], [8926, 1, 4, 2.31], [12647, 1, 4, 0.75], [11739, 2, 4, 0.39], [13249, 29, 4, 1.16], [3495, 3, 10, 0.82], [11687, 2, 4, 0.38], [7324, 1, 4, 0.56], [11425, 25, 4, 0.51], [8285, 2, 4, 0.52], [6935, 2, 202, 5.27], [141, 2, 114, 3.01], [589, 2, 89, 3.17], [2778, 2, 146, 2.77], [6936, 2, 202, 5.81], [2327, 2, 111, 3.3], [11681, 2, 220, 6.0], [362, 2, 111, 3.45], [8648, 2, 170, 5.97], [8650, 2, 179, 6.0], [326, 2, 71, 3.85], [2328, 2, 119, 4.01], [1446, 2, 68, 3.34], [2049, 3, 272, 2.27], [2775, 2, 146, 2.77], [361, 2, 123, 3.53], [8853, 2, 222, 6.0], [593, 2, 53, 3.38], [143, 2, 117, 3.68], [140, 2, 84, 2.91], [3840, 1, 40, 1.79], [523, 2, 123, 3.41], [7004, 1, 19, 2.03], [413, 1, 80, 2.72], [21793, 1, 220, 4.63], [12350, 1, 488, 3.41], [1124, 2, 147, 3.88], [7036, 1, 119, 4.05], [5165, 1, 36, 5.87], [12349, 1, 575, 5.14], [145, 2, 35, 3.51], [248, 1, 13, 3.27], [8089, 1, 65, 4.06], [6952, 1, 148, 5.46], [6097, 80, 54, 6.0], [2055, 3, 166, 3.43], [345, 3, 238, 4.1], [144, 2, 138, 2.39], [10993, 2, 19, 1.89], [11770, 1, 208, 2.35], [2057, 3, 166, 3.43], [3891, 1, 92, 3.38], [2912, 1, 43, 3.1], [5165, 2, 347, 5.64], [998, 2, 191, 4.68], [3893, 1, 116, 2.66], [9372, 1, 215, 4.91], [12870, 1, 129, 3.03], [12343, 1, 575, 5.14], [2424, 80, 154, 5.59], [12351, 1, 575, 5.14], [6098, 80, 59, 5.09], [6097, 29, 27, 6.0], [20927, 1, 19, 1.99], [10574, 3, 400, 4.31], [6158, 2, 207, 3.96], [3334, 5, 168, 3.45], [12345, 1, 575, 5.14], [11089, 1, 125, 3.59], [10149, 3, 809, 4.06], [1492, 1, 35, 2.53], [2912, 2, 348, 2.71], [3889, 1, 116, 2.66]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 7, 0.97], [305, 2, 4, 0.75], [6935, 2, 8, 1.2], [2049, 3, 10, 0.21], [141, 2, 4, 0.39], [205, 2, 4, 0.2], [326, 2, 4, 0.47], [130, 1, 4, 0.5], [144, 2, 4, 0.5], [589, 2, 6, 0.2], [151, 1, 4, 0.46], [362, 2, 4, 1.32], [1776, 1, 5, 1.48], [146, 2, 4, 0.58], [145, 2, 4, 0.38], [206, 2, 4, 0.2], [143, 2, 4, 0.58], [2328, 2, 5, 0.55], [8648, 2, 5, 0.77], [1777, 1, 5, 0.93], [6936, 2, 6, 1.17], [5151, 2, 4, 1.55], [8650, 2, 5, 1.15], [2778, 2, 4, 0.2], [22247, 2, 4, 1.07], [8677, 3, 5, 2.06], [10, 2, 6, 0.2], [76, 2, 4, 1.11], [10149, 3, 17, 1.32], [8649, 2, 4, 1.15], [2050, 3, 5, 0.77], [412, 1, 4, 0.91], [13028, 3, 4, 0.5], [361, 2, 4, 0.74], [413, 1, 4, 0.85], [7004, 1, 4, 0.4], [11404, 2, 4, 0.48], [411, 2, 4, 0.2], [410, 1, 4, 0.2], [3478, 2, 4, 0.78], [6158, 2, 6, 0.2], [308, 1, 4, 0.72], [167, 3, 4, 1.35], [5081, 2, 6, 0.2], [7005, 1, 4, 0.4], [3495, 3, 17, 1.31], [45, 2, 4, 1.12], [7036, 1, 4, 1.64], [5812, 3, 5, 2.5], [9827, 3, 4, 0.2], [94, 4, 4, 0.51], [3893, 1, 4, 0.53], [168, 3, 5, 0.29], [3889, 1, 4, 0.53], [10574, 3, 5, 1.17], [3891, 1, 4, 0.53], [2049, 1, 4, 0.4], [13280, 1, 4, 1.23], [12870, 1, 4, 2.83], [2336, 3, 6, 0.5], [335, 3, 10, 1.08], [1504, 2, 6, 0.2], [6097, 29, 4, 2.36], [6097, 80, 4, 2.86], [11737, 2, 4, 1.04], [95, 3, 15, 0.19], [998, 2, 4, 1.27], [346, 1, 4, 0.56], [20927, 1, 4, 0.61], [79, 1, 4, 0.2], [6098, 29, 4, 2.02], [22316, 3, 5, 0.49], [9069, 1, 4, 1.09], [6098, 80, 4, 3.02], [1070, 7, 10, 0.43], [14017, 3, 4, 0.67], [8898, 3, 5, 2.17], [9760, 29, 4, 0.43], [346, 3, 5, 0.5], [997, 2, 4, 1.29], [20498, 1, 5, 0.55], [7887, 4, 4, 0.37], [13034, 3, 8, 0.77], [1622, 1, 5, 0.2], [8945, 3, 5, 1.31], [13260, 29, 4, 0.73], [22554, 10, 9, 0.48], [336, 15, 4, 0.2], [7567, 3, 4, 1.62], [5946, 1, 4, 0.53], [5811, 3, 4, 1.68], [5813, 3, 5, 1.08], [5513, 2, 4, 0.66], [22317, 3, 6, 0.2], [11085, 2, 6, 0.45], [5086, 1, 6, 0.2], [5209, 3, 4, 0.54], [12924, 1, 4, 0.2], [12350, 1, 4, 2.07], [20498, 3, 6, 0.6], [995, 2, 4, 1.31], [229, 1, 4, 2.57], [974, 3, 4, 0.88], [996, 2, 4, 0.74], [972, 3, 6, 0.35], [33, 1, 4, 0.74], [9691, 1, 4, 1.91], [8557, 3, 4, 0.2], [35, 1, 4, 1.05], [110, 4, 4, 0.44], [3049, 3, 4, 1.98], [1080, 3, 4, 0.3], [20486, 3, 6, 0.49], [1703, 2, 4, 1.38], [13023, 3, 5, 1.74], [2424, 80, 4, 1.45], [4076, 3, 4, 3.19], [5584, 3, 4, 0.5], [39, 1, 4, 1.05], [8104, 1, 4, 0.39], [14018, 3, 4, 0.5], [3900, 3, 4, 1.18], [952, 4, 4, 1.94], [215, 4, 4, 3.57], [11510, 3, 5, 0.48], [9081, 3, 9, 0.28], [9613, 1, 4, 0.45], [34, 1, 4, 1.05], [20486, 1, 4, 0.51], [114, 3, 4, 0.48], [972, 1, 4, 0.98], [1414, 15, 4, 0.2], [2854, 21, 10, 0.47], [20969, 3, 4, 1.28], [6497, 1, 5, 1.0], [3047, 3, 4, 1.05], [8672, 2, 190, 5.07], [305, 2, 98, 3.64], [6935, 2, 246, 4.24], [2049, 3, 432, 2.52], [141, 2, 105, 2.87], [205, 2, 64, 2.48], [326, 2, 62, 3.13], [130, 1, 20, 2.4], [144, 2, 128, 2.07], [589, 2, 61, 2.08], [151, 1, 46, 2.99], [362, 2, 122, 3.65], [1776, 1, 85, 4.51], [146, 2, 102, 4.05], [145, 2, 130, 2.51], [206, 2, 79, 2.86], [143, 2, 100, 3.21], [2328, 2, 102, 3.16], [8648, 2, 150, 4.67], [1777, 1, 85, 3.88], [6936, 2, 190, 4.62], [5151, 2, 17, 4.09], [8650, 2, 150, 5.32], [2778, 2, 105, 3.21], [22247, 2, 246, 3.76], [8677, 3, 197, 5.23], [10, 2, 91, 3.16], [76, 2, 73, 4.44], [10149, 3, 575, 5.41], [8649, 2, 150, 5.01], [2050, 3, 318, 3.54], [412, 1, 57, 3.82], [13028, 3, 99, 3.08], [361, 2, 134, 2.53], [413, 1, 58, 3.3], [7004, 1, 54, 2.88], [11404, 2, 91, 2.3], [411, 2, 38, 3.03], [410, 1, 54, 2.83], [6158, 2, 195, 2.69], [308, 1, 146, 3.55], [5081, 2, 128, 3.15], [7005, 1, 42, 2.88], [3495, 3, 641, 4.39], [45, 2, 73, 5.82], [7036, 1, 85, 4.63], [5812, 3, 203, 6.0], [9827, 3, 59, 3.04], [94, 4, 80, 4.7], [3893, 1, 108, 2.17], [168, 3, 273, 3.61], [3889, 1, 108, 2.17], [10574, 3, 438, 3.43], [3891, 1, 108, 2.17], [2049, 1, 20, 1.88], [13280, 1, 271, 3.48], [12870, 1, 92, 6.0], [2336, 3, 456, 3.41], [335, 3, 989, 5.46], [1504, 2, 137, 2.99], [6097, 29, 23, 6.0], [6097, 80, 46, 6.0], [11737, 2, 49, 3.14], [95, 3, 752, 3.08]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 15, 2.18], [305, 2, 7, 1.49], [326, 2, 11, 1.63], [589, 2, 12, 0.67], [143, 2, 7, 1.12], [2049, 3, 15, 1.54], [130, 1, 7, 1.81], [6935, 2, 18, 3.14], [75, 2, 11, 2.11], [144, 2, 7, 1.91], [12721, 2, 10, 1.69], [145, 2, 7, 1.0], [8915, 2, 15, 0.5], [7885, 4, 7, 0.77], [146, 2, 7, 1.0], [1776, 1, 7, 1.17], [2778, 2, 11, 1.07], [206, 2, 9, 0.68], [1777, 1, 7, 1.85], [151, 1, 7, 0.71], [8648, 2, 11, 3.26], [6936, 2, 10, 2.57], [2328, 2, 9, 1.55], [5151, 2, 7, 3.02], [7886, 4, 7, 0.87], [248, 1, 7, 0.68], [2050, 3, 9, 1.03], [141, 2, 9, 1.62], [2991, 3, 7, 4.18], [74, 1, 7, 3.53], [2054, 3, 9, 1.08], [83, 2, 7, 1.12], [1446, 2, 7, 0.5], [1492, 1, 7, 1.85], [7004, 1, 7, 0.71], [2055, 3, 7, 0.82], [76, 2, 9, 2.08], [8649, 2, 11, 4.24], [345, 3, 9, 0.87], [11404, 2, 7, 0.67], [7084, 3, 9, 5.0], [3889, 1, 7, 0.8], [10825, 21, 13, 1.79], [61, 3, 7, 1.02], [10149, 3, 21, 1.67], [7036, 1, 7, 2.24], [21793, 1, 7, 3.94], [12870, 1, 9, 5.0], [33, 1, 9, 2.05], [94, 4, 9, 1.6], [5081, 2, 7, 1.33], [3478, 2, 9, 2.13], [10, 2, 7, 1.31], [11681, 2, 11, 3.47], [167, 3, 7, 2.54], [411, 2, 7, 0.71], [9827, 3, 7, 0.5], [308, 1, 7, 4.97], [1654, 2, 7, 1.54], [3891, 1, 7, 2.63], [1504, 2, 7, 2.8], [8677, 3, 9, 1.26], [201, 3, 9, 0.87], [168, 3, 9, 3.03], [3893, 1, 7, 2.63], [84, 2, 7, 0.86], [79, 1, 7, 1.16], [35, 1, 7, 2.45], [2336, 3, 9, 1.96], [13280, 1, 7, 2.96], [23, 1, 7, 1.29], [1490, 1, 7, 0.67], [9760, 29, 7, 1.04], [1243, 2, 7, 1.02], [6158, 2, 8, 0.86], [412, 1, 7, 2.69], [45, 2, 7, 2.72], [361, 2, 7, 2.25], [346, 1, 9, 1.08], [20927, 1, 7, 0.94], [1767, 25, 7, 1.14], [25, 1, 7, 1.46], [12225, 1, 7, 1.7], [9069, 1, 7, 0.73], [413, 1, 6, 2.06], [21269, 3, 7, 3.75], [3495, 3, 22, 2.26], [346, 3, 7, 0.98], [490, 1, 7, 1.52], [997, 2, 9, 2.24], [34, 1, 7, 1.69], [1766, 25, 9, 1.08], [8898, 3, 7, 2.78], [5946, 1, 7, 2.48], [9691, 1, 7, 3.41], [1070, 7, 15, 0.85], [1519, 3, 22, 0.73], [9372, 1, 7, 3.85], [14017, 3, 7, 1.6], [11954, 1, 7, 0.87], [20498, 1, 7, 1.3], [38, 1, 7, 1.9], [974, 3, 7, 2.64], [14037, 3, 11, 0.74], [22317, 3, 9, 0.98], [5584, 3, 7, 3.74], [972, 3, 8, 2.02], [1091, 1, 7, 1.77], [7567, 3, 7, 2.33], [20498, 3, 8, 1.9], [110, 4, 7, 0.68], [9828, 3, 9, 0.76], [8945, 3, 8, 1.04], [5813, 3, 9, 3.74], [2991, 1, 7, 3.22], [82, 2, 7, 1.0], [3048, 3, 7, 4.18], [39, 1, 7, 1.14], [1080, 3, 11, 1.59], [1414, 15, 9, 0.72], [24, 1, 7, 2.0], [13034, 3, 8, 2.65], [336, 15, 9, 0.68], [1767, 2, 9, 1.14], [202, 2, 7, 1.73], [13260, 29, 7, 2.28], [10780, 10, 7, 3.58], [5513, 2, 7, 1.1], [9082, 3, 24, 2.75], [11811, 1, 7, 3.28], [4203, 1, 9, 1.06], [2878, 1, 7, 2.34], [14018, 3, 7, 1.64], [8635, 3, 9, 0.8], [3900, 3, 7, 0.9], [8104, 1, 7, 0.85], [2336, 3, 588, 3.23], [13280, 1, 320, 4.24], [23, 1, 96, 3.54], [1490, 1, 43, 2.98], [9760, 29, 73, 2.31], [1243, 2, 99, 2.29], [6158, 2, 225, 3.16], [412, 1, 71, 4.36], [45, 2, 97, 4.53], [361, 2, 157, 3.51], [346, 1, 112, 2.88], [20927, 1, 40, 1.95], [1767, 25, 148, 3.4], [25, 1, 96, 3.71], [9069, 1, 123, 1.99], [413, 1, 73, 3.86], [21269, 3, 213, 5.55], [3495, 3, 827, 4.56], [346, 3, 448, 2.79], [997, 2, 174, 4.04], [34, 1, 81, 3.7], [1766, 25, 161, 3.33], [8898, 3, 247, 5.08], [5946, 1, 107, 3.78], [1070, 7, 510, 3.13], [1519, 3, 558, 1.46], [9372, 1, 165, 5.15], [14017, 3, 168, 4.21], [11954, 1, 174, 3.18], [20498, 1, 84, 4.11], [38, 1, 81, 3.7], [974, 3, 127, 3.95], [22317, 3, 229, 2.78], [5584, 3, 169, 5.54], [972, 3, 510, 3.45], [7567, 3, 71, 3.6], [20498, 3, 425, 3.7], [110, 4, 77, 2.1], [9828, 3, 64, 2.69], [8945, 3, 603, 2.29], [5813, 3, 428, 5.01], [2991, 1, 30, 4.52], [82, 2, 20, 1.76], [3048, 3, 198, 5.48], [39, 1, 81, 2.94], [1080, 3, 97, 3.39], [1414, 15, 85, 2.47], [24, 1, 57, 3.8], [13034, 3, 428, 3.96], [336, 15, 57, 1.69], [1767, 2, 25, 2.94], [202, 2, 73, 3.0], [13260, 29, 53, 3.55], [10780, 10, 278, 5.4], [5513, 2, 80, 2.37], [9082, 3, 1772, 4.58], [11811, 1, 328, 4.58], [4203, 1, 35, 2.86], [2878, 1, 58, 3.64], [14018, 3, 198, 2.9], [3900, 3, 45, 2.17], [8104, 1, 150, 2.65]]</t>
-  </si>
-  <si>
-    <t>[[2327, 2, 7, 1.0], [305, 2, 9, 1.32], [6935, 2, 11, 4.09], [2778, 2, 9, 0.93], [589, 2, 10, 0.87], [8915, 2, 8, 1.31], [144, 2, 7, 1.04], [143, 2, 7, 0.85], [2328, 2, 11, 1.39], [6936, 2, 7, 3.27], [205, 2, 7, 0.74], [8648, 2, 11, 3.48], [2775, 2, 11, 0.61], [8650, 2, 7, 2.95], [145, 2, 7, 0.96], [146, 2, 7, 2.81], [326, 2, 7, 2.24], [7036, 1, 11, 3.63], [2049, 3, 12, 0.71], [88, 10, 20, 2.1], [2776, 2, 11, 0.61], [141, 2, 7, 0.72], [7004, 1, 11, 2.57], [1446, 2, 7, 1.43], [206, 2, 7, 0.74], [9760, 29, 7, 1.24], [362, 2, 7, 1.0], [2912, 1, 7, 3.11], [2055, 3, 7, 1.08], [142, 2, 7, 1.99], [3893, 1, 7, 0.71], [12870, 1, 9, 3.23], [5165, 1, 7, 4.43], [9372, 1, 7, 3.08], [7886, 4, 7, 0.8], [7084, 3, 7, 2.06], [3889, 1, 7, 1.38], [2054, 3, 7, 1.3], [2050, 3, 7, 1.57], [1622, 1, 7, 0.5], [10, 2, 7, 1.39], [21793, 1, 7, 1.02], [7573, 1, 16, 4.79], [3891, 1, 7, 0.76], [5208, 3, 11, 0.79], [75, 2, 7, 2.43], [10149, 3, 21, 3.07], [20927, 1, 9, 1.93], [997, 2, 9, 1.93], [3, 2, 9, 1.33], [11234, 2, 9, 1.3], [5165, 2, 8, 4.03], [12721, 2, 7, 2.81], [998, 2, 9, 1.56], [1886, 2, 9, 0.86], [94, 4, 9, 1.6], [346, 3, 9, 0.82], [35, 1, 7, 3.45], [22247, 2, 7, 2.52], [9491, 21, 32, 0.95], [996, 2, 9, 2.63], [955, 2, 7, 1.04], [83, 2, 9, 1.33], [229, 1, 7, 2.98], [33, 1, 7, 2.75], [7887, 4, 9, 2.4], [6158, 2, 7, 1.56], [2912, 2, 12, 3.18], [76, 2, 7, 1.69], [413, 1, 7, 3.62], [13928, 1, 7, 2.31], [2424, 80, 7, 2.78], [2805, 137, 7, 2.56], [5209, 3, 14, 2.79], [5076, 1, 7, 1.87], [346, 1, 7, 0.83], [8676, 2, 7, 3.15], [38, 1, 7, 3.14], [34, 1, 9, 2.65], [418, 2, 7, 1.04], [84, 2, 7, 2.7], [8104, 1, 7, 2.1], [12212, 29, 7, 1.4], [3495, 3, 18, 1.61], [11952, 1, 7, 0.83], [1414, 15, 7, 0.81], [39, 1, 7, 3.08], [11490, 1, 7, 1.85], [3048, 3, 7, 2.21], [11770, 1, 7, 1.65], [2424, 29, 7, 2.78], [411, 2, 7, 1.29], [10407, 10, 12, 3.71], [1703, 2, 7, 2.56], [9691, 1, 7, 2.35], [202, 2, 7, 1.68], [13928, 2, 7, 2.7], [11772, 1, 7, 2.43], [11953, 1, 7, 0.98], [5584, 3, 7, 5.0], [22316, 3, 7, 1.16], [23961, 3, 7, 4.58], [7567, 3, 7, 3.04], [13893, 2, 7, 2.25], [12764, 2, 10, 1.76], [13023, 3, 10, 1.41], [10410, 10, 15, 3.59], [1519, 3, 16, 0.62], [74, 1, 7, 5.0], [21269, 3, 7, 3.07], [1274, 1, 7, 1.26], [5164, 1, 7, 3.75], [410, 1, 7, 1.96], [2331, 1, 7, 1.23], [4253, 1, 7, 1.16], [1523, 1, 7, 1.16], [10408, 10, 8, 4.11], [1492, 1, 7, 0.87], [2438, 2, 8, 3.7], [12229, 2, 7, 1.44], [3430, 15, 7, 2.79], [6097, 80, 7, 2.43], [13034, 3, 7, 3.12], [3047, 3, 7, 3.16], [6805, 1, 7, 0.97], [8674, 2, 7, 2.33], [71, 15, 7, 0.67], [1243, 2, 7, 2.73], [21059, 1, 7, 3.09], [10780, 10, 7, 4.06], [11116, 1, 7, 1.08], [2436, 4, 7, 1.58], [6097, 29, 7, 1.52], [11812, 1, 7, 0.89], [1080, 3, 7, 2.78], [24257, 1, 7, 1.08], [3429, 15, 7, 0.71], [76, 2, 78, 3.73], [413, 1, 49, 4.92], [13928, 1, 34, 3.92], [2424, 80, 156, 4.21], [2805, 137, 151, 4.69], [5076, 1, 92, 4.0], [346, 1, 130, 2.96], [8676, 2, 263, 4.57], [38, 1, 26, 4.31], [34, 1, 77, 4.19], [418, 2, 131, 2.46], [84, 2, 51, 4.29], [8104, 1, 145, 4.33], [12212, 29, 101, 3.03], [3495, 3, 889, 3.02], [11952, 1, 185, 2.25], [1414, 15, 46, 2.03], [39, 1, 26, 4.25], [3048, 3, 249, 3.63], [11770, 1, 180, 3.78], [2424, 29, 31, 4.2], [411, 2, 50, 2.51], [1703, 2, 136, 3.98], [202, 2, 17, 2.49], [13928, 2, 21, 4.12], [11772, 1, 201, 3.85], [11953, 1, 185, 2.4], [5584, 3, 169, 6.0], [22316, 3, 291, 2.58], [23961, 3, 245, 6.0], [7567, 3, 16, 4.21], [13893, 2, 252, 3.67], [12764, 2, 621, 3.87], [13023, 3, 501, 3.53], [1519, 3, 382, 1.41], [74, 1, 164, 6.0], [21269, 3, 244, 4.71], [1274, 1, 76, 2.68], [5164, 1, 43, 5.17], [2331, 1, 109, 2.65], [4253, 1, 143, 3.29], [1523, 1, 43, 2.58], [1492, 1, 32, 3.0], [2438, 2, 522, 5.34], [12229, 2, 128, 3.07], [3430, 15, 24, 3.96], [6097, 80, 57, 3.85], [13034, 3, 491, 4.54], [3047, 3, 225, 4.59], [6805, 1, 379, 3.09], [8674, 2, 263, 3.76], [1243, 2, 82, 4.36], [21059, 1, 299, 4.51], [10780, 10, 312, 5.49], [11116, 1, 18, 1.89], [2436, 4, 40, 3.21], [6097, 29, 32, 2.94], [11812, 1, 187, 2.85], [1080, 3, 117, 4.2], [24257, 1, 49, 2.16], [3429, 15, 12, 1.52]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 10, 2.95], [11685, 2, 7, 3.6], [326, 2, 7, 2.44], [8648, 2, 9, 2.71], [589, 2, 8, 0.61], [2327, 2, 7, 0.98], [205, 2, 9, 0.93], [593, 2, 11, 1.26], [11681, 2, 9, 3.34], [143, 2, 9, 1.44], [305, 2, 7, 0.98], [8915, 2, 8, 0.74], [8650, 2, 7, 1.85], [141, 2, 7, 1.58], [6936, 2, 11, 4.58], [2778, 2, 7, 1.57], [146, 2, 9, 2.65], [88, 10, 18, 0.73], [7004, 1, 7, 1.94], [7036, 1, 7, 3.33], [145, 2, 9, 2.06], [1446, 2, 11, 1.04], [8853, 2, 7, 2.37], [362, 2, 7, 0.96], [2055, 3, 7, 4.41], [417, 2, 7, 1.56], [10993, 2, 7, 1.37], [11737, 2, 7, 1.76], [3893, 1, 9, 1.0], [75, 2, 7, 2.23], [2050, 3, 7, 3.31], [159, 3, 12, 0.56], [3840, 1, 7, 0.75], [523, 2, 9, 1.31], [12870, 1, 7, 3.69], [3889, 1, 7, 1.02], [2057, 3, 7, 4.02], [7084, 3, 7, 1.77], [13280, 1, 7, 2.32], [20927, 1, 7, 1.82], [3, 2, 7, 1.37], [7005, 1, 7, 1.42], [997, 2, 7, 2.0], [3982, 3, 17, 2.85], [9760, 29, 9, 0.86], [10, 2, 7, 1.29], [3891, 1, 7, 1.02], [98, 11, 16, 0.96], [998, 2, 7, 1.33], [11739, 2, 7, 1.41], [6158, 2, 9, 1.48], [7885, 4, 9, 0.7], [84, 2, 7, 1.73], [5165, 2, 8, 3.91], [346, 3, 7, 1.05], [9372, 1, 7, 2.6], [3980, 4, 7, 2.36], [5165, 1, 7, 4.43], [411, 2, 7, 2.14], [10388, 2, 7, 3.52], [2912, 1, 7, 3.11], [9491, 21, 20, 0.87], [214, 3, 15, 0.69], [346, 1, 7, 0.91], [3981, 3, 22, 2.14], [1492, 1, 7, 1.48], [22316, 3, 7, 0.98], [10386, 2, 7, 1.91], [33, 1, 7, 4.53], [995, 2, 7, 2.23], [13928, 1, 7, 2.9], [418, 2, 7, 0.98], [22247, 2, 7, 3.08], [308, 1, 7, 3.52], [13893, 2, 7, 4.76], [336, 15, 7, 1.93], [7886, 4, 9, 0.94], [7567, 3, 7, 2.33], [2912, 2, 8, 4.0], [35, 1, 7, 3.52], [10631, 2, 7, 3.81], [11490, 1, 7, 2.02], [229, 1, 7, 2.31], [159, 1, 7, 0.98], [11953, 1, 7, 1.4], [83, 2, 7, 0.94], [11770, 1, 7, 1.35], [13283, 1, 7, 2.96], [22317, 3, 9, 1.92], [10780, 10, 7, 5.0], [10407, 10, 10, 3.8], [9691, 1, 7, 2.44], [13286, 1, 7, 1.85], [10149, 3, 21, 3.14], [10410, 10, 10, 2.33], [12271, 2, 7, 3.87], [6497, 1, 7, 0.87], [345, 3, 7, 1.94], [1413, 15, 7, 1.12], [74, 1, 7, 2.19], [8943, 3, 7, 0.73], [3478, 2, 7, 1.62], [37, 1, 7, 2.23], [9971, 2, 7, 3.45], [23611, 3, 9, 0.72], [10387, 2, 7, 1.83], [39, 1, 7, 1.04], [11085, 2, 8, 3.27], [4076, 3, 7, 2.6], [3048, 3, 7, 2.27], [2331, 1, 7, 2.86], [159, 16, 7, 0.98], [34, 1, 7, 1.79], [13281, 1, 7, 2.64], [20498, 3, 10, 2.22], [82, 2, 7, 1.37], [4001, 3, 14, 3.01], [11510, 3, 8, 2.0], [45, 2, 7, 2.96], [9, 1, 7, 0.96], [12338, 29, 7, 0.73], [9965, 2, 7, 2.62], [9964, 2, 7, 3.45], [10936, 2, 7, 3.27], [215, 4, 7, 2.81], [24257, 1, 7, 2.95], [105, 3, 7, 0.98], [1523, 1, 7, 2.08], [12764, 2, 8, 1.96], [1895, 3, 7, 1.42], [12212, 29, 7, 0.96], [12858, 1, 7, 1.41], [1080, 3, 7, 0.89], [11489, 1, 7, 0.96], [2805, 137, 8, 1.47], [8635, 3, 7, 2.91], [22316, 3, 233, 2.92], [10386, 2, 206, 3.27], [995, 2, 177, 4.17], [13928, 1, 44, 4.26], [418, 2, 135, 2.34], [22247, 2, 211, 4.44], [308, 1, 151, 4.88], [13893, 2, 255, 6.0], [336, 15, 102, 3.29], [7567, 3, 67, 3.69], [2912, 2, 304, 5.36], [10631, 2, 76, 4.85], [11490, 1, 26, 3.38], [229, 1, 62, 3.67], [159, 1, 24, 2.18], [11953, 1, 49, 2.84], [83, 2, 39, 2.23], [11770, 1, 181, 3.29], [13283, 1, 303, 4.32], [22317, 3, 257, 3.38], [10780, 10, 332, 6.0], [13286, 1, 303, 3.21], [10149, 3, 642, 4.59], [10410, 10, 1149, 3.67], [6497, 1, 36, 2.23], [345, 3, 220, 3.29], [1413, 15, 24, 2.52], [74, 1, 194, 3.54], [8943, 3, 92, 1.51], [3478, 2, 45, 2.86], [37, 1, 82, 3.58], [9971, 2, 259, 4.81], [23611, 3, 259, 2.75], [10387, 2, 206, 3.19], [39, 1, 106, 2.39], [11085, 2, 395, 4.73], [4076, 3, 148, 3.96], [3048, 3, 199, 3.72], [2331, 1, 110, 4.22], [159, 16, 48, 2.22], [34, 1, 82, 3.15], [13281, 1, 303, 4.0], [20498, 3, 430, 4.65], [82, 2, 14, 2.15], [4001, 3, 582, 4.46], [11510, 3, 563, 3.36], [45, 2, 106, 4.32], [9, 1, 33, 2.32], [12338, 29, 51, 2.09], [9965, 2, 259, 3.98], [9964, 2, 259, 4.81], [10936, 2, 127, 4.63], [215, 4, 35, 4.17], [24257, 1, 131, 4.31], [105, 3, 182, 2.92], [1523, 1, 45, 3.44], [12764, 2, 549, 3.42], [1895, 3, 225, 3.36], [12212, 29, 115, 2.32], [12858, 1, 430, 2.85], [1080, 3, 123, 2.25], [11489, 1, 104, 2.32], [2805, 137, 176, 2.83], [8635, 3, 248, 4.8]]</t>
-  </si>
-  <si>
-    <t>[[326, 2, 8, 1.03], [2049, 3, 16, 0.79], [6935, 2, 23, 3.05], [362, 2, 9, 1.81], [141, 2, 7, 1.04], [75, 2, 11, 1.95], [1776, 1, 7, 1.12], [8672, 2, 15, 1.91], [7886, 4, 7, 1.01], [2778, 2, 8, 0.56], [6936, 2, 10, 2.79], [305, 2, 7, 0.92], [593, 2, 14, 0.66], [1777, 1, 7, 2.22], [11681, 2, 10, 5.0], [8648, 2, 9, 3.21], [151, 1, 6, 0.85], [206, 2, 7, 0.71], [88, 10, 17, 1.44], [2328, 2, 7, 0.94], [83, 2, 7, 1.0], [8650, 2, 11, 3.25], [2050, 3, 7, 1.22], [5151, 2, 7, 2.7], [412, 1, 7, 2.67], [144, 2, 7, 1.93], [2991, 3, 7, 4.04], [22247, 2, 11, 3.0], [361, 2, 7, 0.94], [57, 1, 9, 0.68], [10149, 3, 25, 3.26], [2054, 3, 9, 3.5], [417, 2, 9, 1.37], [146, 2, 9, 2.18], [3478, 2, 7, 1.48], [45, 2, 7, 2.65], [143, 2, 7, 1.34], [7004, 1, 9, 0.93], [167, 3, 7, 2.5], [12721, 2, 10, 1.92], [168, 3, 7, 1.38], [2055, 3, 7, 2.83], [74, 1, 7, 2.52], [1446, 2, 7, 1.69], [346, 1, 7, 0.74], [84, 2, 7, 0.86], [7036, 1, 7, 4.25], [335, 3, 22, 3.91], [3495, 3, 21, 1.64], [5081, 2, 7, 0.84], [10, 2, 14, 3.54], [13028, 3, 7, 1.61], [8649, 2, 9, 2.97], [12870, 1, 7, 5.0], [410, 1, 7, 1.23], [11404, 2, 9, 1.56], [79, 1, 7, 0.73], [96, 11, 20, 0.84], [3889, 1, 7, 2.38], [145, 2, 7, 1.4], [5208, 3, 16, 1.06], [3893, 1, 7, 1.67], [1492, 1, 7, 1.2], [23, 1, 7, 3.33], [5812, 3, 8, 2.16], [1504, 2, 9, 0.89], [94, 4, 7, 2.54], [7005, 1, 7, 1.44], [13260, 29, 7, 1.85], [9827, 3, 7, 0.86], [411, 2, 7, 1.71], [3891, 1, 7, 1.55], [1490, 1, 7, 1.35], [25, 1, 7, 2.33], [21269, 3, 7, 4.99], [13280, 1, 7, 2.37], [998, 2, 7, 2.91], [9069, 1, 7, 3.62], [7567, 3, 7, 3.13], [5086, 1, 9, 2.04], [2878, 1, 7, 1.63], [1243, 2, 7, 1.93], [1703, 2, 7, 3.38], [9691, 1, 7, 3.66], [20927, 1, 7, 2.0], [997, 2, 7, 2.5], [5209, 3, 7, 0.67], [346, 3, 10, 1.24], [11914, 1, 9, 1.02], [5660, 2, 7, 1.94], [856, 1, 7, 0.85], [1124, 2, 11, 0.76], [5584, 3, 7, 3.61], [1070, 7, 13, 1.16], [159, 3, 12, 0.83], [8274, 3, 7, 1.68], [11811, 1, 9, 2.48], [996, 2, 7, 4.92], [1519, 3, 26, 0.68], [23961, 3, 7, 2.61], [8898, 3, 7, 5.0], [5513, 2, 7, 2.49], [22317, 3, 8, 0.9], [1091, 1, 7, 1.1], [24, 1, 7, 2.76], [952, 4, 7, 5.0], [13034, 3, 10, 3.25], [9081, 3, 12, 3.15], [12661, 1, 7, 4.54], [27, 1, 7, 2.87], [336, 15, 7, 0.8], [1413, 15, 7, 1.69], [9760, 29, 9, 0.87], [4203, 1, 7, 1.52], [10529, 29, 7, 2.85], [20498, 1, 7, 1.87], [9082, 3, 21, 1.67], [9372, 1, 7, 1.55], [1163, 3, 9, 0.86], [6097, 80, 7, 3.08], [6097, 29, 9, 2.58], [2109, 3, 18, 0.78], [82, 2, 7, 0.75], [972, 3, 8, 0.84], [995, 2, 7, 4.5], [66, 16, 7, 0.87], [2104, 3, 10, 2.99], [6098, 80, 7, 2.49], [20498, 3, 8, 1.64], [66, 1, 7, 0.89], [8635, 3, 6, 1.16], [12225, 1, 7, 1.0], [5813, 3, 7, 2.46], [10780, 10, 7, 4.2], [5946, 1, 7, 1.06], [6098, 29, 7, 2.47], [34, 1, 7, 2.02], [1504, 2, 137, 3.04], [94, 4, 107, 3.65], [13260, 29, 49, 3.0], [9827, 3, 59, 3.01], [3891, 1, 84, 3.52], [1490, 1, 34, 3.01], [25, 1, 75, 3.9], [21269, 3, 196, 6.0], [13280, 1, 271, 3.48], [998, 2, 160, 5.07], [7567, 3, 27, 3.82], [5086, 1, 123, 4.19], [2878, 1, 54, 3.29], [1243, 2, 85, 3.04], [1703, 2, 149, 4.53], [997, 2, 160, 3.61], [5209, 3, 415, 2.85], [346, 3, 423, 2.89], [11914, 1, 58, 3.67], [5660, 2, 118, 4.09], [856, 1, 30, 1.96], [1124, 2, 147, 2.57], [5584, 3, 168, 5.27], [1070, 7, 397, 2.8], [159, 3, 496, 1.88], [11811, 1, 354, 3.58], [996, 2, 185, 6.0], [1519, 3, 573, 2.82], [23961, 3, 229, 4.26], [8898, 3, 188, 6.0], [5513, 2, 67, 3.6], [22317, 3, 248, 2.56], [1091, 1, 34, 3.25], [952, 4, 49, 6.0], [13034, 3, 391, 4.65], [9081, 3, 306, 5.8], [12661, 1, 41, 5.7], [27, 1, 38, 3.89], [336, 15, 45, 2.96], [9760, 29, 57, 2.53], [4203, 1, 39, 2.68], [10529, 29, 37, 4.0], [20498, 1, 85, 2.98], [9082, 3, 1662, 3.42], [9372, 1, 197, 2.66], [6097, 80, 60, 4.19], [6097, 29, 32, 4.24], [2109, 3, 369, 2.52], [82, 2, 32, 1.67], [972, 3, 519, 1.94], [995, 2, 204, 5.61], [66, 16, 61, 2.53], [2104, 3, 261, 4.1], [6098, 80, 65, 3.6], [20498, 3, 508, 2.74], [66, 1, 33, 2.0], [12225, 1, 144, 2.11], [5813, 3, 508, 3.56], [10780, 10, 314, 5.31], [5946, 1, 108, 2.17], [6098, 29, 33, 3.58], [34, 1, 97, 3.13]]</t>
-  </si>
-  <si>
-    <t>[[589, 2, 8, 0.87], [88, 10, 20, 1.09], [8915, 2, 10, 0.81], [2327, 2, 7, 1.0], [2778, 2, 7, 0.5], [305, 2, 7, 1.32], [6935, 2, 11, 3.9], [2328, 2, 9, 1.46], [6936, 2, 7, 3.27], [326, 2, 9, 3.02], [8648, 2, 9, 4.08], [8650, 2, 9, 4.02], [1446, 2, 7, 1.82], [7004, 1, 11, 2.57], [2049, 3, 15, 0.71], [205, 2, 7, 1.24], [144, 2, 7, 2.5], [143, 2, 7, 2.77], [10, 2, 7, 2.55], [94, 4, 9, 1.6], [7036, 1, 11, 3.63], [3893, 1, 9, 0.71], [1124, 2, 7, 1.74], [146, 2, 7, 2.81], [2055, 3, 9, 0.85], [206, 2, 7, 1.24], [5208, 3, 11, 0.79], [3891, 1, 9, 0.76], [75, 2, 7, 2.89], [362, 2, 7, 2.21], [7886, 4, 7, 1.3], [12224, 1, 7, 0.89], [3889, 1, 7, 1.88], [21793, 1, 7, 1.02], [2054, 3, 9, 1.43], [3980, 4, 8, 2.39], [7005, 1, 7, 2.08], [7084, 3, 7, 3.02], [12870, 1, 7, 4.2], [10149, 3, 21, 3.04], [2050, 3, 9, 1.11], [145, 2, 7, 2.89], [8672, 2, 11, 3.11], [2912, 1, 7, 3.04], [5165, 1, 7, 4.43], [998, 2, 7, 1.5], [20927, 1, 7, 3.39], [9760, 29, 7, 0.97], [997, 2, 7, 1.64], [1886, 2, 7, 1.19], [2436, 4, 7, 1.08], [7887, 4, 7, 2.37], [3, 2, 9, 1.33], [2424, 80, 7, 2.78], [6158, 2, 7, 1.56], [229, 1, 7, 2.02], [142, 2, 7, 0.69], [3495, 3, 14, 1.61], [955, 2, 7, 1.04], [346, 3, 7, 0.92], [5076, 1, 7, 2.01], [74, 1, 7, 5.0], [5165, 2, 8, 4.03], [11953, 1, 7, 0.98], [11954, 1, 7, 0.87], [11770, 1, 7, 0.96], [996, 2, 7, 1.42], [12721, 2, 7, 1.45], [9491, 21, 32, 0.95], [22316, 3, 7, 1.16], [1492, 1, 7, 0.97], [9372, 1, 7, 3.08], [11772, 1, 9, 0.76], [7573, 1, 16, 4.79], [2912, 2, 12, 3.97], [2423, 80, 9, 3.29], [5584, 3, 7, 5.0], [6497, 1, 7, 0.94], [2438, 2, 8, 3.77], [12229, 2, 7, 0.94], [3975, 4, 7, 2.98], [346, 1, 7, 0.71], [5209, 3, 9, 1.29], [5434, 1, 7, 2.56], [9082, 3, 33, 3.08], [823, 1, 7, 2.33], [10407, 10, 12, 3.27], [12764, 2, 23, 1.61], [4253, 1, 7, 1.04], [1622, 1, 9, 0.75], [11812, 1, 7, 0.84], [6496, 1, 7, 0.71], [2424, 29, 7, 2.78], [10388, 2, 7, 4.03], [5946, 1, 7, 1.62], [3900, 3, 7, 3.48], [8676, 2, 7, 3.15], [1339, 3, 16, 0.72], [1703, 2, 7, 1.94], [11490, 1, 7, 0.75], [2805, 137, 7, 2.56], [24257, 1, 7, 0.92], [13893, 2, 7, 2.25], [6097, 80, 7, 1.56], [37, 1, 7, 2.96], [6805, 1, 9, 0.97], [7567, 3, 7, 3.04], [22247, 2, 7, 2.52], [1414, 15, 7, 0.81], [9784, 1, 7, 2.75], [8635, 3, 7, 2.64], [11814, 1, 7, 0.92], [38, 1, 7, 2.23], [35, 1, 7, 2.96], [95, 3, 27, 0.73], [1274, 1, 7, 1.26], [23611, 3, 8, 0.74], [10386, 2, 7, 3.88], [1895, 3, 7, 4.16], [8104, 1, 7, 2.66], [788, 2, 7, 1.08], [12212, 29, 7, 0.9], [413, 1, 7, 1.27], [3979, 3, 13, 1.25], [8283, 2, 8, 1.19], [114, 3, 7, 2.95], [10780, 10, 7, 4.06], [12979, 25, 12, 1.36], [8274, 3, 7, 2.19], [76, 2, 7, 0.9], [8659, 1, 7, 1.64], [9065, 2, 7, 1.62], [12501, 1, 7, 2.39], [440, 3, 7, 2.41], [4232, 80, 7, 3.58], [418, 2, 7, 1.04], [19931, 1, 7, 2.43], [83, 2, 7, 0.85], [11772, 1, 155, 3.47], [7573, 1, 261, 6.0], [2912, 2, 317, 5.4], [2423, 80, 129, 5.92], [5584, 3, 217, 6.0], [6497, 1, 35, 2.36], [2438, 2, 522, 5.34], [12229, 2, 141, 2.36], [3975, 4, 403, 4.61], [346, 1, 142, 2.13], [5209, 3, 130, 2.1], [9082, 3, 2259, 4.5], [823, 1, 34, 4.46], [10407, 10, 415, 5.88], [12764, 2, 520, 3.92], [4253, 1, 121, 3.63], [1622, 1, 25, 3.47], [11812, 1, 167, 3.48], [6496, 1, 36, 2.13], [2424, 29, 31, 4.2], [10388, 2, 200, 5.45], [5946, 1, 114, 3.04], [8676, 2, 263, 4.57], [1339, 3, 607, 1.79], [1703, 2, 150, 3.36], [11490, 1, 100, 2.17], [2805, 137, 166, 3.98], [24257, 1, 55, 2.4], [13893, 2, 252, 3.67], [6097, 80, 63, 2.98], [37, 1, 26, 4.35], [6805, 1, 379, 3.09], [7567, 3, 16, 4.21], [22247, 2, 262, 3.94], [1414, 15, 46, 2.03], [9784, 1, 66, 4.18], [11814, 1, 207, 2.34], [38, 1, 93, 3.65], [35, 1, 26, 4.3], [95, 3, 943, 2.96], [1274, 1, 69, 3.39], [23611, 3, 323, 2.17], [10386, 2, 200, 5.3], [1895, 3, 250, 6.0], [8104, 1, 71, 3.74], [12212, 29, 111, 2.32], [413, 1, 79, 2.69], [3979, 3, 681, 2.89], [8283, 2, 437, 2.61], [114, 3, 56, 4.15], [10780, 10, 328, 5.49], [12979, 25, 606, 2.79], [76, 2, 101, 2.32], [8659, 1, 101, 3.77], [9065, 2, 277, 3.04], [12501, 1, 274, 3.82], [440, 3, 45, 3.57], [4232, 80, 137, 5.0], [418, 2, 131, 2.46], [19931, 1, 376, 3.85], [83, 2, 19, 1.93]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 10, 2.95], [305, 2, 7, 0.98], [2778, 2, 9, 1.07], [205, 2, 9, 0.98], [6936, 2, 9, 3.69], [616, 2, 7, 0.87], [88, 10, 14, 0.73], [144, 2, 7, 2.72], [8648, 2, 9, 2.71], [8915, 2, 8, 0.74], [326, 2, 7, 1.94], [589, 2, 8, 0.61], [11681, 2, 9, 3.84], [7036, 1, 7, 2.37], [8650, 2, 9, 2.48], [2327, 2, 7, 0.98], [593, 2, 11, 1.29], [3893, 1, 7, 1.28], [141, 2, 7, 2.08], [7004, 1, 7, 1.94], [3840, 1, 7, 0.75], [3891, 1, 7, 1.02], [2050, 3, 7, 3.31], [146, 2, 7, 2.56], [3889, 1, 7, 1.02], [2055, 3, 7, 3.41], [143, 2, 7, 1.48], [3980, 4, 7, 2.36], [10, 2, 7, 1.29], [7885, 4, 7, 1.27], [8672, 2, 11, 2.68], [2054, 3, 7, 3.66], [7886, 4, 7, 1.73], [12870, 1, 7, 4.21], [2057, 3, 6, 3.52], [5165, 1, 7, 4.43], [3975, 4, 7, 2.49], [159, 3, 8, 1.02], [7084, 3, 7, 1.94], [145, 2, 7, 2.48], [523, 2, 7, 1.98], [21793, 1, 7, 1.02], [75, 2, 7, 0.89], [7005, 1, 7, 1.42], [3981, 3, 21, 2.03], [9760, 29, 7, 1.36], [3982, 3, 17, 2.85], [20927, 1, 7, 2.25], [6158, 2, 27, 2.25], [33, 1, 11, 4.03], [997, 2, 9, 4.26], [214, 3, 16, 0.74], [5165, 2, 8, 3.91], [2912, 1, 7, 3.11], [7887, 4, 7, 2.25], [22316, 3, 7, 1.48], [11953, 1, 7, 1.4], [229, 1, 7, 2.31], [998, 2, 9, 4.5], [35, 1, 11, 4.03], [346, 3, 7, 1.38], [6497, 1, 7, 0.87], [389, 4, 7, 2.77], [996, 2, 9, 3.58], [1492, 1, 7, 1.48], [972, 3, 11, 4.56], [955, 2, 7, 1.41], [11490, 1, 7, 1.02], [6496, 1, 7, 1.56], [74, 1, 7, 2.3], [2336, 3, 8, 0.81], [22317, 3, 7, 1.42], [1413, 15, 7, 1.12], [4176, 4, 7, 3.75], [2912, 2, 8, 3.02], [336, 15, 7, 1.91], [12212, 29, 7, 0.96], [192, 3, 18, 3.13], [7573, 1, 11, 4.14], [8677, 3, 7, 3.07], [39, 1, 7, 1.79], [37, 1, 7, 1.77], [11085, 2, 8, 3.16], [201, 3, 9, 2.36], [345, 3, 7, 0.98], [1277, 1, 7, 1.54], [8676, 2, 7, 1.94], [1274, 1, 7, 1.29], [21269, 3, 7, 5.0], [13023, 3, 7, 2.44], [12271, 2, 7, 1.35], [6494, 1, 7, 0.87], [10388, 2, 7, 2.82], [3, 2, 7, 2.35], [10408, 10, 10, 3.18], [202, 2, 7, 1.68], [10936, 2, 7, 3.27], [36, 1, 7, 2.23], [2805, 137, 8, 1.47], [3577, 25, 7, 1.14], [9, 1, 7, 0.96], [5812, 3, 7, 1.86], [11489, 1, 7, 0.96], [11812, 1, 7, 0.89], [1414, 15, 7, 1.0], [20498, 3, 8, 2.71], [3048, 3, 7, 2.73], [9691, 1, 7, 2.41], [8675, 2, 7, 2.91], [9372, 1, 7, 2.6], [346, 1, 7, 1.56], [13928, 1, 7, 2.9], [12225, 1, 7, 2.19], [10386, 2, 7, 1.91], [12764, 2, 10, 1.46], [13893, 2, 7, 4.76], [13280, 1, 7, 2.32], [11814, 1, 7, 0.92], [8898, 3, 7, 4.45], [11089, 1, 7, 0.73], [10407, 10, 10, 2.41], [3576, 25, 7, 1.51], [491, 10, 10, 1.57], [13035, 3, 7, 2.54], [972, 1, 7, 1.51], [9069, 1, 7, 1.42], [10939, 2, 7, 3.72], [8659, 1, 7, 3.43], [19931, 1, 9, 2.43], [11087, 2, 7, 2.51], [2438, 2, 8, 3.7], [958, 2, 7, 0.9], [3577, 29, 7, 1.29], [23611, 3, 9, 0.99], [1523, 1, 7, 2.08], [22317, 3, 257, 3.38], [1413, 15, 24, 2.52], [4176, 4, 391, 5.2], [2912, 2, 358, 4.38], [336, 15, 80, 3.27], [12212, 29, 115, 2.32], [192, 3, 1045, 5.54], [7573, 1, 333, 5.5], [8677, 3, 238, 4.51], [39, 1, 82, 3.74], [37, 1, 82, 3.22], [11085, 2, 435, 5.15], [201, 3, 220, 4.31], [345, 3, 220, 2.92], [1277, 1, 184, 2.9], [8676, 2, 273, 3.3], [1274, 1, 78, 2.65], [21269, 3, 238, 6.0], [13023, 3, 563, 3.8], [12271, 2, 61, 2.71], [6494, 1, 39, 2.81], [10388, 2, 175, 4.71], [3, 2, 91, 3.8], [10408, 10, 563, 5.14], [202, 2, 26, 2.72], [10936, 2, 127, 4.63], [36, 1, 82, 3.58], [2805, 137, 176, 2.83], [3577, 25, 66, 3.09], [9, 1, 33, 2.32], [5812, 3, 442, 3.82], [11489, 1, 104, 2.32], [11812, 1, 177, 2.83], [1414, 15, 24, 1.77], [20498, 3, 430, 4.65], [3048, 3, 199, 4.09], [8675, 2, 273, 4.27], [9372, 1, 216, 3.96], [346, 1, 114, 3.01], [13928, 1, 44, 4.26], [12225, 1, 157, 3.55], [10386, 2, 206, 3.27], [12764, 2, 549, 3.42], [13893, 2, 255, 6.0], [13280, 1, 303, 3.68], [11814, 1, 166, 2.87], [8898, 3, 269, 5.81], [11089, 1, 164, 2.09], [10407, 10, 1149, 3.76], [3576, 25, 96, 2.87], [491, 10, 324, 4.01], [13035, 3, 286, 3.9], [972, 1, 94, 2.86], [9069, 1, 117, 2.78], [10939, 2, 127, 5.08], [8659, 1, 114, 4.79], [19931, 1, 301, 4.38], [11087, 2, 512, 3.87], [2438, 2, 599, 5.06], [958, 2, 103, 2.25], [3577, 29, 28, 2.64], [23611, 3, 333, 2.36], [1523, 1, 45, 3.44]]</t>
-  </si>
-  <si>
-    <t>[[141, 2, 9, 0.88], [2328, 2, 11, 1.85], [8650, 2, 7, 2.81], [130, 1, 7, 1.86], [2327, 2, 11, 1.82], [589, 2, 9, 0.95], [8672, 2, 15, 1.9], [326, 2, 7, 3.12], [6935, 2, 23, 4.24], [206, 2, 7, 0.77], [142, 2, 7, 1.37], [11837, 2, 7, 1.06], [11838, 2, 11, 1.02], [6936, 2, 7, 3.06], [12721, 2, 11, 1.45], [8915, 2, 7, 1.21], [2049, 3, 37, 1.73], [1446, 2, 9, 0.74], [2778, 2, 13, 1.84], [8676, 2, 7, 1.0], [615, 2, 7, 0.85], [305, 2, 7, 2.39], [593, 2, 8, 0.84], [616, 2, 7, 0.87], [21793, 1, 8, 2.18], [413, 1, 7, 1.71], [11835, 2, 7, 1.06], [411, 2, 7, 0.83], [412, 1, 7, 1.92], [10574, 3, 9, 2.89], [12349, 1, 7, 1.03], [8675, 2, 11, 1.94], [145, 2, 13, 2.63], [8673, 2, 9, 2.91], [143, 2, 7, 1.1], [6158, 2, 9, 2.18], [151, 1, 7, 0.9], [11836, 2, 7, 1.36], [10149, 3, 21, 1.49], [3495, 3, 21, 1.51], [2050, 3, 7, 0.64], [2055, 3, 7, 2.55], [146, 2, 7, 2.81], [2054, 3, 7, 1.4], [75, 2, 7, 3.21], [7885, 4, 9, 1.86], [88, 10, 16, 3.31], [416, 1, 7, 1.54], [144, 2, 7, 1.04], [7084, 3, 7, 2.01], [2859, 15, 7, 1.61], [21798, 1, 7, 1.15], [10993, 2, 7, 0.75], [346, 3, 8, 0.82], [335, 3, 17, 4.35], [2424, 29, 7, 4.47], [7705, 2, 7, 2.62], [2423, 80, 7, 1.56], [2423, 29, 7, 1.56], [3848, 2, 7, 2.06], [7704, 2, 7, 2.62], [5165, 1, 7, 4.43], [13023, 3, 10, 2.77], [346, 1, 7, 0.67], [1519, 3, 16, 0.68], [201, 3, 7, 2.66], [2424, 80, 7, 4.47], [60, 3, 10, 4.24], [1414, 15, 7, 0.79], [410, 1, 7, 0.73], [6494, 1, 7, 0.9], [345, 3, 7, 2.81], [13034, 3, 8, 2.41], [11490, 1, 7, 0.89], [5208, 3, 13, 0.87], [11770, 1, 7, 0.75], [432, 3, 11, 4.94], [3430, 15, 7, 1.84], [11954, 1, 7, 2.23], [2703, 3, 7, 3.23], [6952, 1, 7, 1.12], [7004, 1, 7, 0.81], [7706, 2, 9, 2.62], [20927, 1, 7, 1.35], [3429, 15, 7, 0.81], [114, 3, 7, 1.1], [308, 1, 9, 2.95], [7886, 4, 8, 1.31], [1886, 2, 7, 0.79], [105, 3, 7, 1.05], [11811, 1, 7, 1.93], [13928, 1, 7, 2.9], [2331, 1, 7, 1.0], [11089, 1, 7, 0.81], [94, 4, 7, 3.81], [3981, 3, 13, 0.91], [944, 15, 7, 0.79], [10407, 10, 10, 2.08], [5584, 3, 7, 5.0], [1490, 1, 7, 3.83], [8274, 3, 7, 3.88], [11674, 1, 7, 1.67], [3, 2, 7, 0.79], [22317, 3, 8, 0.72], [13033, 3, 7, 1.19], [952, 4, 7, 3.47], [10410, 10, 10, 2.16], [9690, 1, 7, 1.37], [7708, 2, 7, 2.62], [9342, 2, 7, 0.93], [1339, 3, 17, 0.78], [10409, 10, 11, 2.3], [202, 2, 7, 1.13], [21003, 2, 7, 3.61], [8898, 3, 7, 3.13], [10398, 2, 7, 1.81], [5812, 3, 7, 2.91], [957, 2, 7, 0.71], [95, 3, 13, 2.7], [963, 3, 7, 4.0], [823, 1, 7, 3.23], [6497, 1, 7, 0.85], [20969, 3, 7, 1.66], [10516, 3, 15, 0.67], [9082, 3, 24, 2.83], [186, 3, 12, 1.02], [20196, 2, 7, 3.8], [11677, 1, 7, 1.98], [4253, 1, 7, 1.41], [3980, 4, 7, 2.98], [7703, 2, 7, 2.62], [20555, 2, 7, 0.96], [3478, 2, 7, 1.48], [20682, 1, 7, 1.29], [6630, 3, 7, 3.58], [5165, 2, 8, 3.91], [8897, 3, 7, 3.1], [13034, 3, 543, 3.98], [11490, 1, 72, 2.36], [5208, 3, 223, 2.1], [11770, 1, 203, 2.32], [3430, 15, 63, 3.42], [11954, 1, 132, 3.69], [2703, 3, 282, 4.8], [6952, 1, 174, 2.7], [7004, 1, 73, 2.38], [7706, 2, 152, 4.9], [20927, 1, 42, 2.73], [3429, 15, 21, 2.03], [114, 3, 161, 3.38], [308, 1, 144, 5.0], [1886, 2, 145, 2.36], [105, 3, 161, 3.32], [11811, 1, 414, 3.51], [13928, 1, 43, 4.47], [2331, 1, 109, 2.57], [11089, 1, 159, 2.38], [94, 4, 107, 5.38], [3981, 3, 1545, 2.51], [944, 15, 12, 1.71], [10407, 10, 1103, 3.67], [5584, 3, 210, 6.0], [1490, 1, 45, 5.4], [11674, 1, 162, 3.2], [3, 2, 110, 2.36], [22317, 3, 293, 2.29], [13033, 3, 543, 2.75], [952, 4, 67, 5.04], [10410, 10, 1103, 3.76], [9690, 1, 40, 2.75], [7708, 2, 163, 4.19], [9342, 2, 122, 1.85], [1339, 3, 461, 1.67], [10409, 10, 1638, 3.88], [202, 2, 19, 2.04], [21003, 2, 261, 5.19], [8898, 3, 257, 4.7], [10398, 2, 134, 3.38], [5812, 3, 543, 4.48], [957, 2, 99, 2.28], [95, 3, 974, 4.29], [963, 3, 360, 5.57], [823, 1, 36, 4.81], [6497, 1, 35, 2.42], [20969, 3, 541, 3.24], [10516, 3, 549, 2.23], [9082, 3, 2253, 4.42], [186, 3, 611, 2.6], [20196, 2, 261, 5.37], [11677, 1, 413, 3.56], [4253, 1, 158, 2.98], [3980, 4, 413, 4.79], [7703, 2, 163, 4.19], [20555, 2, 53, 2.53], [3478, 2, 40, 2.86], [20682, 1, 572, 2.86], [6630, 3, 86, 5.16], [5165, 2, 343, 5.49], [8897, 3, 257, 4.68]]</t>
-  </si>
-  <si>
-    <t>[[2778, 2, 17, 1.08], [6935, 2, 28, 5.0], [6936, 2, 9, 2.9], [305, 2, 9, 1.46], [8672, 2, 15, 1.9], [615, 2, 9, 1.23], [145, 2, 7, 0.9], [12721, 2, 11, 1.74], [2327, 2, 11, 1.82], [143, 2, 9, 2.5], [146, 2, 7, 2.16], [2328, 2, 11, 1.85], [11681, 2, 13, 3.75], [5491, 2, 11, 0.61], [205, 2, 7, 1.24], [8650, 2, 14, 4.13], [11835, 2, 7, 1.06], [144, 2, 7, 2.11], [8673, 2, 11, 2.44], [8676, 2, 9, 1.6], [308, 1, 11, 1.77], [417, 2, 9, 1.75], [11837, 2, 7, 1.06], [3, 2, 7, 1.77], [6097, 80, 7, 3.92], [22247, 2, 7, 2.33], [6497, 1, 7, 0.85], [11836, 2, 9, 0.94], [990, 2, 7, 1.41], [593, 2, 12, 0.89], [6097, 29, 7, 5.0], [523, 2, 7, 1.27], [6098, 80, 9, 5.0], [11739, 2, 7, 1.04], [88, 10, 21, 1.51], [12350, 1, 7, 5.0], [8915, 2, 9, 0.71], [2054, 3, 9, 1.53], [326, 2, 7, 2.6], [13260, 29, 7, 2.28], [3429, 15, 7, 0.69], [75, 2, 7, 1.84], [336, 15, 7, 0.75], [1413, 15, 7, 1.49], [1492, 1, 7, 2.1], [411, 2, 7, 1.46], [6098, 29, 7, 5.0], [1050, 2, 7, 0.73], [1339, 3, 17, 0.78], [2422, 80, 7, 2.17], [6496, 1, 7, 2.07], [214, 3, 15, 2.7], [947, 15, 7, 0.85], [7704, 2, 7, 2.88], [10149, 3, 21, 2.21], [346, 1, 7, 0.67], [2859, 15, 7, 1.87], [346, 3, 8, 0.82], [345, 3, 7, 2.67], [11738, 2, 7, 1.54], [13264, 29, 7, 1.5], [13258, 29, 13, 2.5], [1490, 1, 7, 2.87], [1243, 2, 7, 2.14], [7004, 1, 7, 2.06], [229, 1, 7, 2.07], [5208, 3, 13, 1.47], [201, 3, 7, 3.06], [22558, 3, 9, 1.74], [10407, 10, 10, 2.08], [13259, 29, 11, 1.45], [2331, 1, 7, 1.0], [432, 3, 7, 2.04], [7705, 2, 7, 2.88], [12229, 2, 7, 0.87], [7706, 2, 7, 2.88], [418, 2, 7, 0.96], [114, 3, 7, 1.1], [957, 2, 7, 1.56], [13928, 1, 7, 2.9], [1163, 3, 7, 2.79], [3478, 2, 7, 1.48], [11844, 2, 7, 1.21], [8938, 2, 7, 0.83], [7036, 1, 7, 0.87], [9784, 1, 7, 2.81], [11490, 1, 7, 1.02], [11687, 2, 7, 1.52], [11404, 2, 7, 0.92], [2703, 3, 7, 3.23], [410, 1, 7, 1.21], [12348, 1, 7, 2.69], [13258, 25, 7, 2.3], [1886, 2, 7, 0.67], [19687, 1, 7, 2.33], [9065, 2, 7, 1.62], [94, 4, 7, 1.16], [12870, 1, 7, 3.68], [413, 1, 7, 3.23], [11690, 2, 7, 1.0], [956, 2, 7, 1.02], [7708, 2, 7, 2.88], [11161, 1, 10, 2.64], [11159, 1, 14, 3.5], [9760, 29, 7, 1.64], [11689, 2, 7, 1.48], [22125, 2, 7, 0.69], [5976, 1, 7, 4.23], [12373, 1, 11, 2.99], [105, 3, 7, 1.05], [21781, 2, 7, 0.9], [2991, 3, 7, 4.45], [1274, 1, 7, 3.79], [7005, 1, 7, 1.56], [5584, 3, 7, 5.0], [2805, 137, 10, 4.42], [9209, 29, 7, 1.41], [11811, 1, 7, 1.93], [3495, 3, 21, 1.51], [13259, 25, 7, 1.43], [11489, 1, 7, 1.96], [4253, 1, 7, 1.41], [8285, 2, 8, 0.85], [20927, 1, 7, 1.35], [8600, 1, 7, 1.84], [9372, 1, 7, 3.35], [247, 1, 7, 2.77], [10147, 1, 7, 0.69], [12764, 2, 8, 1.71], [21269, 3, 7, 3.75], [3722, 25, 8, 0.67], [9491, 21, 16, 3.25], [7007, 1, 7, 1.56], [11887, 2, 7, 1.1], [5076, 1, 7, 2.19], [6360, 10, 15, 1.18], [2331, 1, 109, 2.57], [432, 3, 276, 3.61], [7705, 2, 162, 4.45], [12229, 2, 131, 3.15], [7706, 2, 162, 4.45], [418, 2, 130, 2.53], [114, 3, 224, 2.67], [957, 2, 78, 3.71], [13928, 1, 43, 4.47], [3478, 2, 40, 2.86], [11844, 2, 253, 2.78], [8938, 2, 176, 2.4], [7036, 1, 117, 2.44], [9784, 1, 57, 4.34], [11490, 1, 100, 2.59], [11687, 2, 277, 3.1], [11404, 2, 96, 2.49], [2703, 3, 282, 4.8], [410, 1, 69, 2.68], [12348, 1, 555, 4.27], [13258, 25, 72, 3.87], [1886, 2, 145, 2.24], [19687, 1, 28, 3.9], [9065, 2, 277, 3.19], [94, 4, 105, 3.44], [12870, 1, 128, 5.25], [413, 1, 78, 4.8], [11690, 2, 277, 2.58], [956, 2, 98, 2.59], [7708, 2, 162, 4.45], [11161, 1, 458, 4.22], [11159, 1, 454, 5.08], [9760, 29, 66, 3.21], [11689, 2, 277, 3.06], [22125, 2, 25, 1.91], [5976, 1, 142, 5.8], [12373, 1, 489, 4.56], [105, 3, 224, 2.61], [21781, 2, 82, 2.43], [2991, 3, 147, 6.0], [1274, 1, 74, 5.36], [7005, 1, 31, 2.78], [5584, 3, 210, 6.0], [2805, 137, 167, 5.99], [9209, 29, 30, 2.98], [11811, 1, 414, 3.51], [3495, 3, 886, 3.08], [13259, 25, 64, 3.0], [4253, 1, 148, 3.69], [8285, 2, 443, 2.43], [20927, 1, 42, 2.73], [8600, 1, 133, 3.41], [9372, 1, 209, 4.92], [247, 1, 79, 4.34], [10147, 1, 62, 2.26], [12764, 2, 680, 3.27], [21269, 3, 270, 5.32], [3722, 25, 53, 1.59], [9491, 21, 1833, 4.81], [7007, 1, 31, 2.78], [11887, 2, 177, 2.67], [5076, 1, 120, 3.76], [6360, 10, 680, 2.74]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 12, 2.4], [141, 2, 7, 0.92], [362, 2, 7, 1.93], [361, 2, 9, 1.99], [12721, 2, 17, 3.77], [6935, 2, 19, 5.0], [206, 2, 7, 0.77], [8676, 2, 7, 1.6], [8675, 2, 9, 1.95], [2049, 3, 17, 0.71], [3, 2, 7, 1.13], [22247, 2, 7, 1.83], [305, 2, 7, 1.51], [523, 2, 7, 1.27], [8650, 2, 9, 2.94], [11838, 2, 7, 0.79], [8648, 2, 7, 2.52], [2328, 2, 7, 2.23], [2776, 2, 7, 1.38], [11739, 2, 9, 0.98], [2327, 2, 7, 1.48], [11837, 2, 7, 1.37], [411, 2, 7, 0.73], [12352, 1, 7, 4.99], [589, 2, 7, 1.17], [412, 1, 7, 2.06], [143, 2, 7, 0.98], [11835, 2, 7, 0.94], [146, 2, 7, 2.01], [583, 2, 7, 1.56], [6097, 80, 7, 5.0], [326, 2, 7, 2.23], [10149, 3, 21, 1.49], [145, 2, 7, 1.71], [11836, 2, 7, 1.54], [6097, 29, 7, 1.77], [144, 2, 7, 0.94], [10574, 3, 10, 2.86], [75, 2, 7, 1.67], [12344, 1, 7, 2.59], [6496, 1, 7, 2.64], [6494, 1, 7, 0.9], [2054, 3, 7, 2.83], [1413, 15, 7, 0.89], [6098, 80, 7, 2.22], [8915, 2, 7, 1.25], [1243, 2, 7, 1.91], [1886, 2, 23, 1.92], [21793, 1, 8, 2.18], [944, 15, 7, 0.77], [6098, 29, 7, 2.56], [1492, 1, 7, 0.9], [247, 1, 7, 3.68], [3429, 15, 7, 0.67], [2859, 15, 7, 0.75], [1490, 1, 7, 0.85], [1414, 15, 7, 0.67], [201, 3, 7, 0.85], [6158, 2, 9, 2.18], [3478, 2, 7, 1.48], [308, 1, 14, 1.41], [13928, 1, 7, 2.9], [336, 15, 7, 0.75], [7084, 3, 7, 2.01], [11489, 1, 7, 1.49], [3982, 3, 24, 0.66], [1703, 2, 7, 1.57], [12526, 2, 7, 2.02], [9342, 2, 7, 0.93], [5812, 3, 9, 3.96], [186, 3, 12, 1.02], [11490, 1, 7, 0.92], [4253, 1, 7, 1.41], [94, 4, 7, 0.75], [5813, 3, 10, 3.68], [1050, 2, 7, 0.69], [10398, 2, 7, 1.32], [5811, 3, 8, 4.0], [2821, 3, 13, 0.91], [5939, 3, 7, 0.9], [8599, 1, 7, 2.99], [11811, 1, 7, 1.93], [229, 1, 7, 3.29], [3980, 4, 7, 2.98], [8943, 3, 7, 1.0], [11771, 1, 7, 1.31], [8898, 3, 6, 5.0], [1339, 3, 17, 0.78], [3495, 3, 21, 1.51], [2991, 3, 7, 4.63], [1049, 2, 7, 0.69], [12764, 2, 8, 1.71], [346, 3, 8, 0.82], [13928, 2, 7, 2.9], [19687, 1, 7, 2.33], [192, 3, 15, 4.24], [7036, 1, 7, 0.87], [9690, 1, 7, 1.54], [22573, 2, 7, 1.91], [5584, 3, 7, 5.0], [10124, 1, 7, 4.18], [105, 3, 7, 0.73], [8897, 3, 7, 5.0], [8274, 3, 7, 3.33], [18964, 1, 7, 2.71], [11886, 2, 7, 1.44], [10147, 1, 7, 0.69], [3334, 5, 7, 3.87], [1701, 2, 7, 1.06], [1277, 1, 7, 0.85], [1523, 1, 7, 2.0], [20927, 1, 7, 1.28], [4001, 3, 24, 1.7], [8635, 3, 7, 3.33], [8286, 2, 8, 0.63], [1274, 1, 7, 3.93], [23275, 2, 7, 1.91], [11678, 1, 7, 1.98], [10516, 3, 15, 3.0], [13260, 29, 7, 2.28], [23031, 3, 7, 2.73], [3984, 3, 8, 1.07], [11677, 1, 7, 1.98], [3979, 3, 8, 1.56], [9065, 2, 7, 1.62], [45, 2, 7, 4.22], [21269, 3, 7, 3.75], [10181, 26, 8, 0.81], [346, 1, 7, 0.67], [9373, 5, 7, 1.87], [11690, 2, 7, 1.0], [973, 3, 8, 1.13], [9069, 1, 7, 1.44], [5976, 1, 7, 4.23], [7005, 1, 7, 1.42], [8285, 2, 8, 0.85], [5812, 3, 503, 6.0], [186, 3, 611, 2.6], [11490, 1, 43, 2.14], [4253, 1, 158, 2.98], [94, 4, 113, 2.33], [5813, 3, 503, 5.8], [10398, 2, 135, 2.9], [5811, 3, 459, 6.0], [2821, 3, 1053, 2.45], [5939, 3, 246, 2.47], [8599, 1, 133, 4.56], [11811, 1, 414, 3.51], [229, 1, 74, 4.86], [3980, 4, 413, 4.79], [8943, 3, 351, 2.57], [11771, 1, 183, 2.89], [8898, 3, 245, 6.0], [1339, 3, 461, 1.67], [3495, 3, 886, 3.08], [2991, 3, 138, 6.0], [12764, 2, 680, 3.27], [346, 3, 566, 2.39], [13928, 2, 21, 4.47], [19687, 1, 28, 3.9], [192, 3, 1093, 6.0], [7036, 1, 117, 2.44], [9690, 1, 40, 2.92], [22573, 2, 65, 3.48], [5584, 3, 210, 6.0], [10124, 1, 92, 5.75], [105, 3, 226, 2.3], [8897, 3, 245, 6.0], [11886, 2, 177, 3.01], [10147, 1, 62, 2.26], [3334, 5, 167, 5.44], [1701, 2, 155, 2.63], [1277, 1, 180, 2.42], [1523, 1, 43, 3.57], [20927, 1, 42, 2.66], [4001, 3, 741, 3.26], [8286, 2, 127, 1.55], [1274, 1, 74, 5.5], [23275, 2, 65, 3.48], [11678, 1, 408, 3.55], [10516, 3, 541, 4.58], [13260, 29, 67, 3.85], [23031, 3, 378, 4.29], [3984, 3, 1523, 2.65], [11677, 1, 413, 3.56], [3979, 3, 741, 3.12], [9065, 2, 277, 3.19], [45, 2, 103, 5.79], [21269, 3, 270, 5.32], [10181, 26, 128, 2.38], [346, 1, 142, 2.24], [9373, 5, 78, 3.44], [11690, 2, 277, 2.58], [973, 3, 1092, 2.71], [9069, 1, 111, 3.01], [5976, 1, 142, 5.8], [7005, 1, 31, 2.64], [8285, 2, 443, 2.43]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 28, 4.18], [305, 2, 7, 0.88], [2328, 2, 11, 1.85], [8672, 2, 12, 1.94], [8650, 2, 9, 2.32], [248, 1, 7, 0.66], [143, 2, 7, 0.93], [6936, 2, 9, 3.12], [145, 2, 7, 0.96], [11837, 2, 7, 0.87], [205, 2, 7, 1.24], [11681, 2, 13, 3.43], [417, 2, 9, 1.34], [589, 2, 7, 0.69], [75, 2, 7, 1.79], [146, 2, 7, 1.1], [1124, 2, 15, 0.74], [12721, 2, 11, 1.45], [8673, 2, 11, 2.2], [206, 2, 6, 0.74], [8853, 2, 7, 2.88], [326, 2, 9, 1.68], [1005, 2, 7, 2.48], [11835, 2, 7, 0.69], [144, 2, 7, 1.34], [8915, 2, 11, 2.38], [308, 1, 11, 1.77], [88, 10, 21, 1.51], [434, 2, 7, 0.85], [11739, 2, 9, 2.98], [6158, 2, 12, 1.0], [11234, 2, 11, 1.06], [2424, 29, 7, 4.47], [11738, 2, 7, 1.88], [2423, 29, 7, 1.56], [7704, 2, 7, 2.88], [11836, 2, 9, 1.36], [2424, 80, 7, 4.47], [7705, 2, 9, 4.08], [1413, 15, 7, 0.99], [2054, 3, 9, 1.93], [7706, 2, 9, 4.08], [10574, 3, 10, 3.86], [2423, 80, 7, 1.56], [3, 2, 9, 1.94], [412, 1, 7, 2.06], [2859, 15, 7, 3.6], [3478, 2, 9, 3.17], [12720, 2, 7, 1.89], [10149, 3, 21, 2.64], [74, 1, 7, 3.14], [12343, 1, 7, 3.02], [346, 3, 8, 0.82], [11919, 1, 7, 2.91], [1339, 3, 17, 0.78], [60, 3, 10, 3.75], [6497, 1, 7, 0.85], [346, 1, 7, 0.67], [418, 2, 7, 1.16], [13928, 1, 7, 2.9], [411, 2, 7, 0.74], [13034, 3, 11, 2.28], [18964, 1, 7, 1.52], [13028, 3, 7, 1.96], [11089, 1, 7, 0.81], [10993, 2, 7, 2.86], [413, 1, 7, 3.23], [13260, 29, 7, 2.75], [7036, 1, 7, 1.79], [94, 4, 9, 4.31], [6952, 1, 7, 3.06], [3891, 1, 7, 2.43], [1050, 2, 7, 0.66], [8274, 3, 9, 1.44], [14037, 3, 9, 2.38], [7707, 2, 7, 2.41], [2991, 3, 7, 4.18], [22317, 3, 14, 0.85], [21793, 1, 8, 4.0], [7708, 2, 7, 2.98], [3889, 1, 7, 4.33], [345, 3, 7, 2.93], [6630, 3, 7, 4.62], [11490, 1, 7, 1.02], [5208, 3, 13, 0.87], [1243, 2, 7, 2.33], [1490, 1, 7, 3.83], [2912, 1, 7, 3.02], [3495, 3, 21, 1.51], [563, 2, 7, 1.79], [229, 1, 7, 2.07], [20680, 1, 7, 1.78], [1049, 2, 7, 0.69], [336, 15, 7, 0.98], [6627, 3, 7, 0.85], [5940, 3, 9, 0.75], [12229, 2, 7, 0.87], [192, 3, 15, 4.24], [11581, 29, 7, 1.89], [13033, 3, 7, 2.22], [23275, 2, 7, 1.91], [2331, 1, 7, 1.23], [1274, 1, 7, 3.02], [2805, 137, 10, 3.08], [247, 1, 7, 2.98], [5165, 1, 7, 4.43], [201, 3, 7, 4.28], [8635, 3, 7, 1.14], [114, 3, 7, 3.33], [942, 3, 9, 1.76], [11914, 1, 7, 0.79], [6496, 1, 7, 2.98], [8898, 3, 7, 3.01], [6629, 3, 7, 0.9], [1703, 2, 7, 0.9], [7886, 4, 8, 0.97], [11770, 1, 7, 3.02], [5812, 3, 7, 2.49], [9372, 1, 7, 3.35], [3934, 5, 11, 1.13], [9760, 29, 7, 3.77], [202, 2, 7, 1.79], [21269, 3, 7, 2.59], [186, 3, 15, 2.32], [332, 2, 7, 1.79], [951, 4, 7, 2.96], [83, 2, 7, 1.1], [4940, 1, 7, 0.69], [10527, 3, 13, 3.97], [6360, 10, 15, 2.01], [5811, 3, 8, 2.39], [1886, 2, 7, 0.85], [21781, 2, 7, 0.9], [12373, 1, 11, 2.99], [9082, 3, 24, 2.83], [20927, 1, 7, 1.35], [5584, 3, 7, 5.0], [13498, 3, 7, 3.06], [12870, 1, 7, 3.35], [7036, 1, 110, 4.02], [94, 4, 64, 5.69], [6952, 1, 136, 5.34], [3891, 1, 106, 4.71], [7707, 2, 152, 3.98], [2991, 3, 137, 6.0], [22317, 3, 249, 3.63], [21793, 1, 175, 6.0], [7708, 2, 152, 4.9], [3889, 1, 32, 6.0], [345, 3, 214, 4.71], [6630, 3, 68, 6.0], [11490, 1, 100, 2.59], [5208, 3, 223, 2.1], [1490, 1, 45, 5.4], [2912, 1, 43, 4.6], [3495, 3, 886, 3.08], [563, 2, 19, 2.71], [229, 1, 75, 3.64], [20680, 1, 566, 3.35], [6627, 3, 68, 3.13], [5940, 3, 180, 2.44], [12229, 2, 131, 3.15], [192, 3, 1093, 6.0], [11581, 29, 55, 3.46], [13033, 3, 546, 3.8], [23275, 2, 65, 3.48], [2331, 1, 109, 2.8], [1274, 1, 74, 4.59], [2805, 137, 168, 4.65], [247, 1, 80, 4.55], [5165, 1, 43, 6.0], [201, 3, 272, 5.85], [942, 3, 252, 4.54], [11914, 1, 74, 3.07], [6496, 1, 34, 4.55], [8898, 3, 240, 4.79], [6629, 3, 62, 2.43], [1703, 2, 153, 2.47], [11770, 1, 182, 4.59], [5812, 3, 500, 4.76], [9372, 1, 209, 4.92], [3934, 5, 538, 2.71], [202, 2, 19, 2.71], [21269, 3, 250, 4.37], [186, 3, 513, 4.42], [332, 2, 19, 2.71], [951, 4, 86, 4.54], [83, 2, 14, 2.02], [4940, 1, 111, 2.26], [10527, 3, 687, 5.51], [6360, 10, 291, 3.8], [5811, 3, 538, 3.96], [1886, 2, 144, 2.42], [21781, 2, 82, 2.43], [12373, 1, 489, 4.56], [9082, 3, 2253, 4.42], [20927, 1, 42, 2.73], [5584, 3, 210, 6.0], [13498, 3, 552, 4.63], [12870, 1, 125, 4.92]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 11, 3.36], [141, 2, 9, 1.09], [589, 2, 10, 0.75], [2778, 2, 11, 1.33], [6936, 2, 13, 3.9], [2327, 2, 9, 1.37], [11681, 2, 30, 4.17], [362, 2, 11, 1.69], [8648, 2, 9, 3.55], [8650, 2, 11, 4.78], [305, 2, 11, 3.03], [326, 2, 9, 2.4], [205, 2, 7, 1.64], [2328, 2, 7, 2.1], [1446, 2, 7, 0.92], [2049, 3, 11, 0.75], [130, 1, 9, 1.81], [2775, 2, 9, 1.33], [361, 2, 7, 1.61], [8853, 2, 14, 4.03], [593, 2, 9, 1.46], [143, 2, 7, 1.77], [140, 2, 7, 1.47], [3840, 1, 7, 0.96], [523, 2, 7, 1.49], [7004, 1, 9, 1.21], [413, 1, 7, 1.27], [21793, 1, 7, 3.18], [12350, 1, 7, 0.97], [1124, 2, 7, 1.09], [151, 1, 7, 1.53], [7036, 1, 7, 2.61], [990, 2, 9, 1.44], [5165, 1, 7, 4.43], [12349, 1, 7, 3.68], [145, 2, 7, 2.68], [201, 3, 23, 4.06], [248, 1, 7, 0.76], [8089, 1, 7, 2.62], [6952, 1, 9, 3.04], [6097, 80, 7, 5.0], [2050, 3, 9, 3.0], [2055, 3, 9, 2.33], [345, 3, 9, 2.18], [144, 2, 7, 0.94], [10993, 2, 7, 0.79], [7084, 3, 7, 5.0], [11770, 1, 7, 0.9], [2057, 3, 9, 2.33], [3891, 1, 7, 1.46], [2912, 1, 7, 1.66], [5165, 2, 12, 4.19], [998, 2, 11, 1.31], [3893, 1, 7, 1.21], [9372, 1, 7, 3.47], [12870, 1, 7, 1.58], [12343, 1, 7, 3.68], [7885, 4, 7, 1.91], [2424, 80, 7, 4.14], [12351, 1, 7, 3.68], [6098, 80, 7, 3.64], [6097, 29, 9, 5.0], [20927, 1, 9, 1.16], [10574, 3, 8, 2.79], [6158, 2, 9, 2.08], [3334, 5, 7, 2.0], [12345, 1, 7, 3.68], [11089, 1, 9, 1.67], [10149, 3, 24, 2.61], [1492, 1, 7, 1.08], [2912, 2, 8, 1.27], [3889, 1, 7, 1.21], [4032, 29, 7, 1.21], [12304, 1, 7, 2.06], [972, 3, 7, 1.94], [3576, 25, 9, 2.28], [1700, 2, 7, 1.34], [411, 2, 7, 1.79], [13034, 3, 7, 3.03], [2331, 1, 7, 1.94], [11583, 29, 9, 0.76], [229, 1, 7, 3.98], [11426, 25, 7, 0.98], [5151, 2, 7, 2.95], [11490, 1, 7, 1.79], [995, 2, 7, 1.98], [3, 2, 9, 1.12], [8677, 3, 8, 2.63], [12764, 2, 9, 1.86], [2160, 68, 7, 1.96], [3478, 2, 7, 2.16], [13893, 2, 7, 3.45], [2805, 137, 7, 2.45], [3575, 25, 7, 1.49], [13023, 3, 8, 2.67], [13280, 1, 7, 2.1], [5812, 3, 7, 4.34], [6494, 1, 7, 2.91], [3577, 25, 7, 0.87], [11814, 1, 7, 0.92], [4253, 1, 7, 2.71], [11813, 1, 7, 3.42], [2438, 2, 8, 3.32], [75, 2, 7, 0.79], [9289, 29, 7, 2.91], [11404, 2, 7, 0.83], [9971, 2, 7, 3.67], [957, 2, 7, 2.25], [9967, 2, 7, 3.67], [1413, 15, 7, 0.87], [11150, 2, 8, 0.77], [22317, 3, 7, 0.85], [8283, 2, 8, 1.31], [9069, 1, 7, 1.54], [4586, 10, 16, 1.4], [5584, 3, 7, 2.66], [2878, 1, 7, 1.35], [114, 3, 7, 2.95], [9491, 21, 13, 2.57], [21697, 3, 7, 0.85], [11812, 1, 7, 0.79], [9964, 2, 7, 1.83], [9965, 2, 7, 2.61], [4076, 3, 7, 2.73], [10407, 10, 12, 2.29], [10609, 1, 7, 2.98], [336, 15, 7, 0.75], [1163, 3, 7, 2.79], [8926, 1, 7, 4.45], [12647, 1, 7, 1.49], [11739, 2, 7, 1.86], [13249, 29, 7, 2.23], [3495, 3, 16, 1.44], [11687, 2, 7, 0.73], [7324, 1, 7, 1.59], [11425, 25, 7, 0.98], [8285, 2, 7, 1.0], [4032, 29, 89, 2.65], [12304, 1, 97, 3.51], [972, 3, 552, 3.39], [3576, 25, 24, 4.65], [1700, 2, 67, 2.79], [13034, 3, 552, 4.48], [2331, 1, 109, 3.38], [11583, 29, 45, 3.26], [229, 1, 75, 5.43], [11426, 25, 110, 2.42], [5151, 2, 22, 4.4], [11490, 1, 25, 2.61], [995, 2, 225, 3.42], [3, 2, 90, 3.5], [8677, 3, 216, 4.08], [12764, 2, 687, 3.3], [2160, 68, 123, 3.4], [13893, 2, 251, 4.89], [2805, 137, 168, 3.9], [3575, 25, 74, 3.41], [13023, 3, 435, 4.16], [13280, 1, 297, 3.54], [5812, 3, 430, 5.78], [6494, 1, 46, 4.36], [3577, 25, 82, 2.32], [11814, 1, 209, 2.37], [4253, 1, 157, 4.15], [11813, 1, 288, 4.86], [2438, 2, 581, 4.77], [75, 2, 135, 2.24], [9289, 29, 59, 4.36], [11404, 2, 77, 2.75], [9971, 2, 251, 5.12], [957, 2, 37, 3.67], [9967, 2, 251, 5.12], [1413, 15, 92, 2.32], [11150, 2, 286, 2.18], [22317, 3, 299, 2.3], [8283, 2, 441, 2.76], [9069, 1, 114, 2.98], [4586, 10, 1075, 3.3], [5584, 3, 216, 4.1], [2878, 1, 60, 2.79], [114, 3, 56, 4.11], [9491, 21, 1951, 4.0], [21697, 3, 169, 2.29], [11812, 1, 222, 2.24], [9964, 2, 251, 3.28], [9965, 2, 251, 4.06], [4076, 3, 186, 4.18], [10407, 10, 1115, 3.71], [10609, 1, 265, 4.43], [336, 15, 26, 1.58], [8926, 1, 57, 5.9], [12647, 1, 204, 2.94], [11739, 2, 13, 2.68], [13249, 29, 59, 3.67], [3495, 3, 896, 2.89], [11687, 2, 142, 1.97], [7324, 1, 56, 3.03], [11425, 25, 110, 2.42], [8285, 2, 446, 2.45]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 15, 2.41], [305, 2, 7, 1.49], [6935, 2, 19, 3.14], [2049, 3, 16, 0.77], [141, 2, 7, 0.75], [205, 2, 7, 0.86], [326, 2, 8, 1.03], [130, 1, 7, 1.71], [144, 2, 7, 0.96], [589, 2, 12, 0.67], [151, 1, 7, 0.89], [362, 2, 7, 2.54], [1776, 1, 7, 2.85], [146, 2, 7, 2.94], [145, 2, 7, 1.4], [206, 2, 7, 0.69], [143, 2, 7, 1.12], [2328, 2, 7, 1.01], [8648, 2, 9, 2.52], [1777, 1, 7, 2.22], [6936, 2, 10, 2.57], [5151, 2, 7, 2.98], [8650, 2, 7, 3.16], [2778, 2, 9, 1.06], [22247, 2, 9, 2.65], [8677, 3, 8, 3.63], [10, 2, 11, 2.05], [76, 2, 11, 3.36], [10149, 3, 25, 3.26], [8649, 2, 7, 3.36], [2050, 3, 9, 1.52], [412, 1, 7, 1.75], [13028, 3, 7, 0.96], [361, 2, 7, 1.42], [413, 1, 7, 2.14], [7004, 1, 7, 0.77], [11404, 2, 9, 1.19], [411, 2, 7, 1.42], [410, 1, 7, 1.67], [3478, 2, 7, 2.36], [6158, 2, 12, 0.75], [308, 1, 7, 2.44], [167, 3, 11, 4.08], [5081, 2, 18, 1.5], [7005, 1, 9, 0.99], [3495, 3, 26, 2.98], [45, 2, 7, 3.67], [7036, 1, 7, 3.16], [5812, 3, 10, 5.0], [9827, 3, 7, 1.38], [94, 4, 7, 3.04], [3893, 1, 7, 1.06], [168, 3, 9, 1.09], [3889, 1, 7, 1.06], [10574, 3, 9, 2.33], [3891, 1, 7, 1.06], [2049, 1, 7, 0.77], [13280, 1, 7, 2.37], [12870, 1, 7, 5.0], [2336, 3, 8, 1.29], [335, 3, 22, 3.78], [1504, 2, 16, 1.33], [6097, 29, 9, 5.0], [6097, 80, 7, 5.0], [11737, 2, 7, 2.04], [95, 3, 21, 0.92], [998, 2, 9, 3.14], [346, 1, 7, 1.58], [20927, 1, 7, 2.0], [79, 1, 7, 0.73], [6098, 29, 9, 5.0], [22316, 3, 9, 0.97], [9069, 1, 7, 2.6], [6098, 80, 7, 5.0], [1070, 7, 13, 0.73], [14017, 3, 7, 1.29], [8898, 3, 7, 4.48], [9760, 29, 7, 1.15], [346, 3, 8, 0.9], [997, 2, 9, 3.19], [20498, 1, 7, 2.44], [7887, 4, 9, 0.92], [13034, 3, 10, 2.48], [1622, 1, 12, 0.53], [8945, 3, 8, 2.29], [13260, 29, 7, 2.28], [22554, 10, 15, 0.87], [336, 15, 9, 0.68], [7567, 3, 7, 3.89], [5946, 1, 7, 1.06], [5811, 3, 6, 2.76], [5813, 3, 7, 1.98], [5513, 2, 7, 2.49], [22317, 3, 10, 1.35], [11085, 2, 9, 1.33], [5086, 1, 11, 1.14], [5209, 3, 7, 1.04], [12924, 1, 7, 0.86], [12350, 1, 7, 4.0], [20498, 3, 10, 1.9], [995, 2, 9, 4.24], [229, 1, 7, 4.95], [974, 3, 7, 1.69], [996, 2, 9, 3.92], [972, 3, 8, 1.1], [33, 1, 7, 1.92], [9691, 1, 7, 3.68], [8557, 3, 7, 1.53], [35, 1, 7, 2.52], [110, 4, 9, 1.31], [3049, 3, 7, 4.11], [1080, 3, 7, 2.09], [20486, 3, 10, 3.27], [1703, 2, 7, 2.72], [13023, 3, 8, 3.06], [2424, 80, 7, 4.51], [4076, 3, 7, 5.0], [5584, 3, 7, 4.11], [39, 1, 7, 2.02], [8104, 1, 7, 0.75], [14018, 3, 7, 0.96], [3900, 3, 9, 2.92], [952, 4, 7, 3.81], [215, 4, 7, 5.0], [11510, 3, 10, 1.49], [9081, 3, 15, 2.8], [9613, 1, 7, 0.87], [34, 1, 7, 2.02], [20486, 1, 7, 2.87], [114, 3, 7, 1.42], [972, 1, 7, 1.89], [1414, 15, 7, 0.81], [2854, 21, 13, 0.84], [20969, 3, 7, 2.52], [6497, 1, 7, 2.43], [3047, 3, 7, 2.02], [998, 2, 185, 4.25], [346, 1, 121, 2.73], [79, 1, 34, 2.0], [6098, 29, 14, 5.15], [22316, 3, 249, 2.59], [9069, 1, 82, 4.16], [1070, 7, 397, 2.9], [14017, 3, 131, 3.39], [8898, 3, 188, 6.0], [9760, 29, 57, 2.81], [346, 3, 484, 2.55], [997, 2, 185, 4.3], [20498, 1, 66, 4.1], [13034, 3, 391, 4.65], [1622, 1, 38, 1.22], [8945, 3, 463, 3.4], [13260, 29, 63, 3.39], [22554, 10, 327, 1.98], [336, 15, 77, 1.72], [5946, 1, 108, 2.17], [5811, 3, 391, 4.32], [5813, 3, 391, 4.14], [5513, 2, 67, 3.6], [22317, 3, 211, 3.02], [11085, 2, 367, 3.0], [5086, 1, 123, 4.29], [5209, 3, 391, 2.08], [12924, 1, 36, 3.19], [12350, 1, 479, 5.68], [20498, 3, 391, 4.06], [995, 2, 185, 6.0], [974, 3, 128, 2.8], [996, 2, 185, 6.0], [972, 3, 470, 2.29], [33, 1, 88, 3.08], [8557, 3, 136, 3.68], [35, 1, 39, 3.68], [110, 4, 162, 3.47], [3049, 3, 92, 5.77], [1080, 3, 104, 3.24], [20486, 3, 396, 5.43], [1703, 2, 127, 4.37], [13023, 3, 391, 4.6], [2424, 80, 152, 5.66], [4076, 3, 132, 6.0], [5584, 3, 168, 5.27], [39, 1, 88, 3.13], [8104, 1, 144, 1.79], [14018, 3, 131, 3.07], [952, 4, 63, 4.91], [11510, 3, 456, 3.64], [9081, 3, 360, 4.97], [9613, 1, 32, 2.53], [34, 1, 97, 3.13], [20486, 1, 67, 5.02], [114, 3, 192, 2.57], [972, 1, 79, 3.0], [1414, 15, 79, 2.47], [2854, 21, 836, 2.51], [20969, 3, 508, 3.62], [6497, 1, 29, 3.59], [3047, 3, 211, 3.13]]</t>
+    <t>15/12/2025 12:25</t>
+  </si>
+  <si>
+    <t>21/12/2025 23:59</t>
+  </si>
+  <si>
+    <t>[[305, 2, 4, 0.25], [326, 2, 4, 0.54], [589, 2, 6, 0.2], [143, 2, 4, 0.58], [205, 2, 4, 0.2], [2049, 3, 9, 1.4], [130, 1, 4, 0.6], [6935, 2, 8, 1.27], [75, 2, 5, 0.87], [144, 2, 4, 0.74], [12721, 2, 6, 0.72], [145, 2, 4, 0.52], [8915, 2, 8, 0.2], [7885, 4, 4, 0.4], [146, 2, 4, 0.27], [1776, 1, 4, 0.61], [2778, 2, 5, 0.2], [1777, 1, 4, 0.74], [151, 1, 4, 0.2], [206, 2, 4, 0.2], [20252, 2, 4, 0.44], [8648, 2, 4, 1.27], [6936, 2, 5, 1.17], [990, 2, 4, 0.95], [2328, 2, 4, 0.2], [7886, 4, 5, 0.45], [8650, 2, 4, 1.65], [141, 2, 4, 0.28], [74, 1, 4, 1.53], [83, 2, 4, 0.44], [2054, 3, 5, 0.54], [2057, 3, 6, 0.47], [7004, 1, 4, 0.2], [1492, 1, 5, 0.97], [2055, 3, 5, 0.42], [8649, 2, 4, 1.65], [345, 3, 4, 0.32], [21798, 1, 4, 0.36], [7005, 1, 4, 0.2], [7084, 3, 4, 2.28], [3889, 1, 4, 0.2], [10825, 21, 10, 1.04], [7887, 4, 4, 0.35], [33, 1, 4, 0.83], [61, 3, 4, 0.71], [21793, 1, 4, 1.14], [10149, 3, 15, 0.99], [94, 4, 4, 0.2], [432, 3, 6, 0.62], [7036, 1, 4, 0.43], [5081, 2, 5, 0.69], [12870, 1, 4, 2.33], [3478, 2, 4, 0.78], [167, 3, 5, 1.4], [308, 1, 4, 0.49], [11681, 2, 5, 1.79], [411, 2, 4, 0.2], [10, 2, 4, 0.68], [13028, 3, 4, 0.62], [9827, 3, 4, 0.2], [1504, 2, 4, 0.52], [201, 3, 5, 0.32], [3891, 1, 4, 0.2], [84, 2, 4, 1.54], [8677, 3, 6, 0.65], [168, 3, 4, 1.23], [35, 1, 4, 0.83], [1124, 2, 6, 0.2], [3893, 1, 4, 0.2], [79, 1, 4, 0.2], [5812, 3, 6, 0.81], [2336, 3, 5, 0.99], [13280, 1, 4, 0.54], [23, 1, 4, 0.67], [9760, 29, 4, 0.49], [1490, 1, 4, 0.2], [1243, 2, 4, 0.66], [11737, 2, 4, 0.2], [6158, 2, 6, 0.51], [5208, 3, 5, 0.39], [335, 3, 11, 0.22], [412, 1, 4, 1.14], [361, 2, 4, 0.53], [20927, 1, 4, 0.49], [45, 2, 4, 0.64], [214, 3, 9, 0.38], [25, 1, 4, 0.76], [1767, 25, 4, 0.59], [95, 3, 14, 0.31], [9069, 1, 4, 0.42], [10574, 3, 5, 0.58], [413, 1, 5, 1.07], [21269, 3, 4, 1.6], [3495, 3, 15, 1.31], [346, 3, 4, 0.52], [34, 1, 4, 0.63], [997, 2, 4, 0.77], [8898, 3, 5, 0.75], [11116, 1, 4, 0.56], [1766, 25, 4, 0.56], [5946, 1, 4, 1.03], [417, 2, 4, 0.53], [9691, 1, 4, 1.52], [1070, 7, 9, 0.46], [1413, 15, 4, 0.53], [14017, 3, 5, 1.04], [38, 1, 4, 0.63], [20498, 1, 4, 0.23], [9372, 1, 5, 1.74], [11954, 1, 4, 0.2], [974, 3, 5, 0.88], [5209, 3, 4, 0.37], [22317, 3, 5, 0.51], [7567, 3, 4, 0.41], [14037, 3, 4, 0.2], [972, 3, 5, 0.91], [5584, 3, 4, 1.19], [20498, 3, 6, 0.82], [9828, 3, 4, 0.21], [8945, 3, 5, 1.51], [5813, 3, 4, 1.51], [82, 2, 4, 0.46], [39, 1, 4, 0.59], [3048, 3, 4, 1.24], [1080, 3, 5, 0.55], [13034, 3, 5, 1.09], [24, 1, 4, 1.04], [955, 2, 4, 0.22], [1414, 15, 4, 0.2], [336, 15, 4, 0.2], [1767, 2, 4, 0.59], [10780, 10, 4, 0.98], [13260, 29, 4, 0.73], [4203, 1, 5, 0.3], [305, 2, 119, 3.05], [326, 2, 79, 3.44], [589, 2, 157, 1.41], [143, 2, 127, 3.11], [205, 2, 94, 2.56], [130, 1, 60, 2.55], [6935, 2, 243, 5.06], [75, 2, 127, 3.66], [144, 2, 127, 2.96], [12721, 2, 246, 3.75], [145, 2, 130, 3.01], [8915, 2, 197, 1.25], [146, 2, 153, 1.74], [1776, 1, 93, 3.19], [2778, 2, 134, 3.12], [1777, 1, 84, 3.41], [151, 1, 67, 1.45], [206, 2, 111, 1.67], [20252, 2, 95, 1.59], [8648, 2, 194, 5.59], [6936, 2, 243, 4.53], [990, 2, 44, 2.54], [2328, 2, 109, 3.35], [7886, 4, 146, 1.62], [8650, 2, 194, 6.0], [141, 2, 119, 3.67], [74, 1, 173, 5.59], [83, 2, 37, 1.52], [2054, 3, 368, 2.6], [2057, 3, 411, 2.93], [7004, 1, 81, 1.45], [1492, 1, 29, 3.24], [2055, 3, 411, 2.85], [8649, 2, 194, 6.0], [345, 3, 260, 3.1], [21798, 1, 141, 1.7], [7005, 1, 81, 1.47], [3889, 1, 107, 2.86], [10825, 21, 547, 3.52], [7887, 4, 142, 1.41], [33, 1, 90, 3.5], [61, 3, 210, 2.11], [21793, 1, 230, 4.76], [10149, 3, 760, 3.73], [94, 4, 106, 4.16], [432, 3, 259, 3.2], [7036, 1, 110, 3.8], [5081, 2, 164, 3.32], [12870, 1, 119, 6.0], [167, 3, 196, 3.83], [308, 1, 170, 3.3], [11681, 2, 266, 5.07], [411, 2, 94, 2.74], [10, 2, 107, 2.06], [13028, 3, 148, 3.95], [9827, 3, 75, 2.94], [1504, 2, 208, 3.46], [201, 3, 260, 3.1], [3891, 1, 107, 3.74], [84, 2, 69, 3.78], [8677, 3, 254, 3.32], [168, 3, 137, 3.83], [35, 1, 86, 3.36], [1124, 2, 160, 3.48], [3893, 1, 107, 3.7], [79, 1, 40, 2.72]]</t>
+  </si>
+  <si>
+    <t>[[2327, 2, 4, 0.27], [305, 2, 4, 0.45], [6935, 2, 6, 1.69], [2778, 2, 4, 0.2], [8915, 2, 5, 0.21], [144, 2, 4, 0.54], [143, 2, 4, 0.44], [2328, 2, 4, 0.26], [6936, 2, 5, 1.66], [8648, 2, 4, 1.15], [205, 2, 4, 0.37], [593, 2, 6, 0.4], [8650, 2, 5, 1.53], [145, 2, 4, 0.5], [146, 2, 5, 0.57], [326, 2, 4, 0.47], [5493, 2, 4, 0.2], [7036, 1, 4, 1.2], [2049, 3, 8, 0.2], [88, 10, 11, 0.77], [141, 2, 5, 0.39], [7004, 1, 4, 0.99], [1446, 2, 4, 0.78], [206, 2, 4, 0.2], [1124, 2, 4, 0.95], [9760, 29, 4, 0.2], [362, 2, 4, 0.52], [2055, 3, 4, 0.55], [2912, 1, 4, 0.91], [10993, 2, 4, 0.35], [12870, 1, 5, 1.43], [3893, 1, 4, 0.2], [5165, 1, 4, 0.86], [9372, 1, 4, 1.33], [7886, 4, 5, 0.44], [2054, 3, 5, 0.2], [3889, 1, 4, 0.2], [2050, 3, 5, 0.55], [1622, 1, 4, 0.2], [3891, 1, 4, 0.2], [21793, 1, 4, 0.61], [7885, 4, 4, 0.49], [7573, 1, 9, 2.21], [10, 2, 5, 0.36], [5208, 3, 5, 0.21], [10149, 3, 17, 1.21], [75, 2, 5, 1.0], [20927, 1, 4, 1.01], [997, 2, 4, 1.01], [3, 2, 5, 0.62], [11234, 2, 5, 0.5], [5165, 2, 5, 0.86], [12721, 2, 5, 1.46], [998, 2, 4, 0.56], [35, 1, 4, 1.54], [1886, 2, 5, 0.2], [972, 3, 5, 0.75], [22247, 2, 4, 1.14], [9491, 21, 15, 0.22], [996, 2, 4, 0.35], [955, 2, 4, 0.52], [33, 1, 4, 1.18], [83, 2, 4, 0.7], [229, 1, 4, 1.3], [7887, 4, 4, 0.97], [6158, 2, 4, 0.44], [2912, 2, 7, 0.99], [76, 2, 5, 0.85], [413, 1, 4, 1.63], [2424, 80, 4, 0.86], [34, 1, 4, 1.32], [13028, 3, 4, 1.36], [38, 1, 4, 1.38], [5209, 3, 6, 0.71], [13928, 1, 4, 0.95], [8676, 2, 4, 1.22], [8898, 3, 4, 2.55], [418, 2, 4, 0.65], [12212, 29, 5, 0.22], [3495, 3, 10, 1.25], [11952, 1, 4, 0.85], [39, 1, 4, 1.35], [9690, 1, 4, 0.22], [1414, 15, 4, 0.45], [5946, 1, 4, 0.53], [11490, 1, 4, 0.71], [2424, 29, 4, 0.37], [9691, 1, 4, 0.97], [411, 2, 4, 0.85], [415, 1, 4, 0.55], [1703, 2, 4, 1.08], [10407, 10, 6, 1.43], [7567, 3, 4, 1.33], [23961, 3, 4, 2.13], [11953, 1, 4, 0.45], [11772, 1, 4, 1.43], [13023, 3, 5, 0.55], [22316, 3, 4, 0.6], [12764, 2, 5, 0.73], [214, 3, 9, 0.42], [13928, 2, 4, 0.55], [74, 1, 4, 2.78], [21269, 3, 5, 0.99], [10410, 10, 10, 1.66], [13893, 2, 4, 0.91], [1163, 3, 4, 0.46], [972, 1, 4, 0.68], [2331, 1, 4, 0.69], [410, 1, 4, 0.55], [1274, 1, 4, 0.55], [5164, 1, 4, 0.9], [1523, 1, 4, 0.4], [24257, 1, 4, 0.52], [10408, 10, 6, 1.84], [1492, 1, 4, 0.2], [3430, 15, 4, 1.2], [6097, 80, 4, 1.01], [2438, 2, 6, 1.63], [13034, 3, 5, 1.2], [6097, 29, 4, 0.44], [3047, 3, 4, 1.39], [1243, 2, 5, 1.13], [10780, 10, 4, 1.62], [71, 15, 4, 0.39], [6805, 1, 4, 0.51], [1080, 3, 4, 1.41], [2436, 4, 5, 0.31], [1277, 1, 4, 0.36], [7704, 2, 4, 1.64], [7705, 2, 4, 1.64], [3429, 15, 4, 0.37], [6497, 1, 4, 1.11], [8659, 1, 4, 0.82], [19931, 1, 4, 1.26], [20486, 3, 5, 0.5], [2327, 2, 125, 3.09], [305, 2, 110, 3.21], [6935, 2, 209, 6.0], [2778, 2, 118, 3.31], [8915, 2, 170, 2.69], [144, 2, 113, 3.38], [143, 2, 111, 3.2], [2328, 2, 113, 3.78], [6936, 2, 209, 5.65], [8648, 2, 168, 5.46], [205, 2, 81, 2.35], [593, 2, 171, 3.32], [8650, 2, 168, 5.19], [145, 2, 113, 3.31], [146, 2, 113, 3.43], [326, 2, 81, 3.07], [5493, 2, 113, 1.57], [7036, 1, 97, 5.41], [2049, 3, 429, 3.11], [141, 2, 117, 3.11], [1446, 2, 140, 2.34], [206, 2, 33, 2.33], [1124, 2, 172, 2.73], [9760, 29, 66, 3.12], [362, 2, 107, 3.34], [2055, 3, 375, 2.33], [2912, 1, 44, 2.59], [10993, 2, 49, 1.84], [12870, 1, 103, 5.58], [3893, 1, 94, 3.1], [5165, 1, 44, 2.5], [9372, 1, 211, 4.09], [7886, 4, 133, 1.64], [2054, 3, 166, 3.07], [3889, 1, 94, 3.61], [2050, 3, 375, 2.44], [1622, 1, 100, 1.42], [3891, 1, 94, 3.15], [21793, 1, 222, 2.06], [7885, 4, 32, 1.42], [7573, 1, 276, 5.69], [10, 2, 93, 2.77], [5208, 3, 522, 1.87], [10149, 3, 662, 4.5], [75, 2, 108, 4.27], [997, 2, 179, 4.71], [3, 2, 91, 3.71], [11234, 2, 170, 2.39], [5165, 2, 354, 2.35], [12721, 2, 210, 4.69], [998, 2, 179, 3.89], [35, 1, 39, 3.84], [1886, 2, 117, 3.42], [972, 3, 444, 3.65], [22247, 2, 261, 3.11], [9491, 21, 1587, 3.27], [996, 2, 174, 5.39], [955, 2, 100, 1.84], [33, 1, 83, 3.95], [229, 1, 63, 3.9], [6158, 2, 241, 2.39], [76, 2, 82, 3.48], [413, 1, 20, 3.93], [2424, 80, 157, 3.61], [34, 1, 83, 3.87]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 5, 1.34], [11685, 2, 4, 1.87], [326, 2, 5, 0.7], [8648, 2, 4, 0.71], [589, 2, 5, 0.2], [2327, 2, 5, 0.29], [593, 2, 5, 0.52], [11681, 2, 5, 1.37], [305, 2, 4, 0.51], [143, 2, 4, 0.76], [141, 2, 4, 0.53], [8650, 2, 4, 0.77], [2778, 2, 5, 0.2], [6936, 2, 5, 1.85], [2049, 3, 8, 0.2], [146, 2, 4, 0.82], [88, 10, 12, 0.2], [7004, 1, 4, 0.61], [615, 2, 4, 0.62], [7036, 1, 4, 1.48], [145, 2, 4, 0.73], [362, 2, 4, 0.5], [8853, 2, 5, 1.2], [2055, 3, 6, 1.74], [10993, 2, 4, 0.63], [11737, 2, 5, 0.2], [3840, 1, 4, 0.38], [159, 3, 6, 0.2], [523, 2, 4, 0.53], [12870, 1, 4, 1.17], [2057, 3, 5, 1.78], [3889, 1, 4, 0.6], [10574, 3, 5, 0.53], [13280, 1, 4, 0.75], [7084, 3, 5, 0.28], [20927, 1, 4, 0.61], [2054, 3, 4, 0.78], [997, 2, 5, 0.78], [3, 2, 4, 0.53], [3982, 3, 14, 1.18], [21793, 1, 4, 1.09], [10, 2, 4, 0.39], [3891, 1, 4, 0.53], [61, 3, 4, 1.23], [998, 2, 4, 0.69], [11739, 2, 4, 0.73], [7885, 4, 5, 0.2], [6158, 2, 6, 0.2], [8672, 2, 5, 0.73], [5165, 1, 4, 0.67], [972, 3, 4, 1.77], [5165, 2, 5, 0.66], [346, 3, 4, 0.87], [3980, 4, 4, 1.19], [9372, 1, 4, 1.49], [411, 2, 4, 0.65], [2912, 1, 4, 0.91], [956, 2, 4, 0.39], [10388, 2, 4, 1.33], [214, 3, 9, 0.38], [9491, 21, 12, 0.29], [3981, 3, 13, 1.15], [346, 1, 4, 0.99], [1492, 1, 4, 0.46], [995, 2, 4, 1.16], [7573, 1, 5, 0.93], [33, 1, 4, 2.08], [22316, 3, 4, 0.51], [7886, 4, 4, 0.24], [13928, 1, 4, 0.47], [10386, 2, 4, 0.36], [336, 15, 4, 0.37], [161, 3, 5, 1.51], [35, 1, 4, 1.58], [7567, 3, 4, 0.71], [11770, 1, 5, 0.2], [2912, 2, 5, 2.03], [308, 1, 4, 1.07], [10631, 2, 4, 1.27], [11490, 1, 4, 0.8], [229, 1, 4, 1.25], [11953, 1, 5, 0.22], [83, 2, 4, 0.67], [22317, 3, 6, 0.51], [10780, 10, 4, 1.58], [414, 1, 4, 0.51], [10407, 10, 6, 1.35], [10149, 3, 15, 1.47], [10410, 10, 6, 1.31], [12271, 2, 4, 1.76], [972, 1, 5, 1.76], [6497, 1, 4, 0.47], [1413, 15, 4, 0.28], [23611, 3, 4, 0.2], [11767, 1, 4, 0.43], [345, 3, 4, 0.76], [8104, 1, 4, 0.38], [37, 1, 4, 0.91], [3478, 2, 4, 0.52], [74, 1, 4, 2.85], [39, 1, 4, 0.43], [10387, 2, 4, 0.37], [9971, 2, 4, 1.0], [4076, 3, 4, 1.19], [3048, 3, 4, 0.46], [152, 21, 4, 0.59], [34, 1, 4, 0.68], [24257, 1, 4, 1.38], [2331, 1, 4, 1.35], [82, 2, 4, 0.41], [20498, 3, 5, 0.73], [4001, 3, 8, 1.13], [4253, 1, 4, 0.73], [11510, 3, 5, 0.5], [45, 2, 4, 2.7], [9, 1, 4, 0.36], [416, 1, 4, 0.51], [215, 4, 4, 0.95], [12338, 29, 4, 0.39], [10936, 2, 4, 0.45], [12764, 2, 6, 0.58], [9965, 2, 4, 2.17], [202, 2, 4, 0.38], [1523, 1, 4, 0.64], [1895, 3, 4, 0.74], [105, 3, 4, 0.51], [12858, 1, 5, 0.22], [1080, 3, 4, 0.46], [2805, 137, 8, 0.94], [11489, 1, 4, 0.39], [8635, 3, 4, 1.26], [7705, 2, 4, 1.2], [3047, 3, 4, 0.9], [10093, 3, 9, 0.9], [6935, 2, 188, 5.01], [11685, 2, 221, 5.55], [326, 2, 88, 3.24], [8648, 2, 217, 3.51], [589, 2, 124, 2.8], [2327, 2, 111, 2.93], [593, 2, 187, 2.96], [11681, 2, 221, 5.54], [305, 2, 119, 3.13], [143, 2, 120, 3.63], [141, 2, 125, 3.78], [8650, 2, 217, 3.05], [2778, 2, 126, 3.26], [6936, 2, 188, 6.0], [2049, 3, 445, 3.07], [146, 2, 123, 3.76], [88, 10, 471, 3.03], [7004, 1, 76, 1.97], [615, 2, 89, 3.8], [7036, 1, 104, 4.47], [145, 2, 55, 3.54], [362, 2, 114, 3.11], [8853, 2, 188, 4.57], [2055, 3, 371, 5.61], [10993, 2, 51, 2.01], [11737, 2, 40, 3.02], [3840, 1, 166, 1.53], [159, 3, 583, 2.54], [523, 2, 125, 3.25], [12870, 1, 108, 5.39], [2057, 3, 371, 5.72], [3889, 1, 120, 1.96], [10574, 3, 374, 1.7], [13280, 1, 303, 3.38], [7084, 3, 106, 3.63], [20927, 1, 76, 2.35], [2054, 3, 437, 4.28], [997, 2, 188, 3.19], [3, 2, 118, 1.82], [3982, 3, 642, 4.54], [21793, 1, 233, 2.97], [10, 2, 102, 1.55], [3891, 1, 120, 1.82], [61, 3, 199, 3.17], [998, 2, 188, 3.02], [11739, 2, 46, 2.86], [7885, 4, 135, 1.5], [6158, 2, 213, 3.44], [8672, 2, 232, 4.88], [5165, 1, 46, 2.09], [5165, 2, 367, 1.95], [346, 3, 584, 2.49], [3980, 4, 377, 4.05], [9372, 1, 219, 3.75], [411, 2, 105, 2.05], [2912, 1, 46, 2.55], [956, 2, 103, 1.55], [10388, 2, 169, 3.83], [214, 3, 629, 1.5], [9491, 21, 1669, 2.55], [3981, 3, 1258, 3.84], [346, 1, 146, 2.71], [1492, 1, 36, 1.69], [995, 2, 188, 3.92], [7573, 1, 334, 4.65], [22316, 3, 247, 2.67]]</t>
+  </si>
+  <si>
+    <t>[[2049, 3, 10, 0.24], [326, 2, 5, 0.47], [6935, 2, 9, 0.72], [362, 2, 5, 0.95], [589, 2, 6, 0.2], [141, 2, 5, 0.54], [75, 2, 4, 0.74], [1776, 1, 4, 0.58], [130, 1, 4, 0.5], [8672, 2, 6, 0.72], [20252, 2, 4, 0.44], [7886, 4, 4, 0.41], [2778, 2, 5, 0.2], [305, 2, 4, 0.48], [1777, 1, 4, 0.93], [6936, 2, 6, 1.27], [593, 2, 6, 0.2], [11681, 2, 5, 2.33], [8648, 2, 5, 0.77], [206, 2, 4, 0.2], [151, 1, 4, 0.44], [88, 10, 12, 0.58], [2328, 2, 5, 0.2], [83, 2, 4, 0.5], [8650, 2, 5, 1.15], [5151, 2, 4, 1.15], [2050, 3, 5, 0.66], [412, 1, 4, 0.91], [361, 2, 4, 0.49], [144, 2, 4, 0.75], [2991, 3, 4, 2.17], [21798, 1, 4, 0.36], [57, 1, 5, 0.2], [10149, 3, 15, 1.32], [76, 2, 4, 0.86], [21793, 1, 4, 1.03], [2054, 3, 4, 1.35], [146, 2, 4, 0.56], [3478, 2, 4, 0.45], [45, 2, 4, 1.12], [143, 2, 4, 0.46], [7004, 1, 5, 0.47], [2057, 3, 4, 1.61], [167, 3, 5, 1.09], [168, 3, 6, 0.74], [74, 1, 4, 0.84], [346, 1, 4, 0.2], [84, 2, 4, 1.54], [3495, 3, 15, 0.92], [335, 3, 11, 0.39], [7036, 1, 4, 1.96], [432, 3, 4, 0.39], [5081, 2, 4, 0.2], [214, 3, 9, 0.42], [10, 2, 4, 0.67], [13028, 3, 4, 0.5], [7887, 4, 4, 0.4], [11404, 2, 5, 0.2], [8649, 2, 4, 1.15], [12870, 1, 4, 2.58], [410, 1, 4, 0.2], [79, 1, 4, 0.2], [142, 2, 4, 0.51], [145, 2, 4, 0.43], [5208, 3, 6, 0.19], [3889, 1, 4, 0.27], [3893, 1, 5, 0.2], [1492, 1, 4, 0.2], [5812, 3, 5, 1.22], [1504, 2, 6, 0.2], [94, 4, 4, 0.26], [9827, 3, 4, 0.2], [411, 2, 4, 0.31], [7005, 1, 4, 0.49], [13260, 29, 4, 0.85], [3891, 1, 4, 0.2], [1490, 1, 5, 0.2], [998, 2, 4, 0.69], [10574, 3, 5, 0.43], [21269, 3, 4, 1.45], [7567, 3, 4, 1.37], [9069, 1, 4, 1.62], [5086, 1, 6, 1.11], [11954, 1, 4, 0.48], [2878, 1, 5, 0.54], [1243, 2, 4, 1.13], [997, 2, 4, 1.37], [9691, 1, 4, 1.65], [20927, 1, 4, 0.61], [5209, 3, 5, 0.19], [1703, 2, 4, 1.13], [11914, 1, 5, 0.2], [1124, 2, 5, 0.21], [856, 1, 4, 0.48], [5660, 2, 5, 1.05], [5584, 3, 4, 0.44], [1070, 7, 11, 0.38], [8274, 3, 5, 1.09], [11811, 1, 4, 1.0], [1519, 3, 12, 0.22], [23961, 3, 4, 2.43], [8898, 3, 4, 2.67], [952, 4, 4, 2.64], [1091, 1, 4, 0.2], [22317, 3, 5, 0.51], [9081, 3, 9, 1.03], [24, 1, 5, 0.95], [5513, 2, 4, 0.52], [13034, 3, 6, 1.01], [12661, 1, 4, 2.35], [336, 15, 4, 0.2], [11767, 1, 4, 0.47], [1413, 15, 4, 0.37], [20498, 1, 4, 2.08], [6097, 80, 4, 0.41], [9760, 29, 4, 0.2], [9082, 3, 18, 0.92], [8945, 3, 6, 2.49], [4203, 1, 5, 0.53], [10529, 29, 4, 1.19], [1163, 3, 5, 0.22], [6097, 29, 4, 0.34], [2109, 3, 9, 0.24], [995, 2, 4, 1.23], [82, 2, 4, 0.35], [20498, 3, 5, 2.0], [11769, 1, 4, 0.47], [972, 3, 5, 0.51], [9372, 1, 4, 1.47], [6098, 80, 4, 0.9], [2104, 3, 6, 1.38], [5813, 3, 4, 1.06], [8635, 3, 5, 0.6], [10780, 10, 4, 2.08], [34, 1, 4, 0.47], [2049, 3, 458, 2.3], [326, 2, 65, 2.88], [6935, 2, 236, 4.45], [362, 2, 117, 3.72], [589, 2, 134, 1.15], [141, 2, 111, 2.89], [75, 2, 103, 3.77], [1776, 1, 81, 2.97], [130, 1, 51, 2.31], [8672, 2, 246, 2.81], [20252, 2, 81, 1.5], [7886, 4, 105, 2.04], [2778, 2, 111, 2.96], [305, 2, 104, 2.78], [1777, 1, 90, 3.63], [6936, 2, 201, 4.58], [593, 2, 162, 2.73], [11681, 2, 193, 6.0], [8648, 2, 159, 5.11], [206, 2, 95, 1.61], [151, 1, 53, 2.46], [88, 10, 398, 4.25], [2328, 2, 108, 2.84], [83, 2, 47, 1.61], [8650, 2, 159, 5.15], [5151, 2, 18, 3.14], [2050, 3, 336, 3.11], [412, 1, 60, 3.58], [361, 2, 134, 1.59], [144, 2, 108, 2.84], [2991, 3, 115, 5.54], [21798, 1, 121, 1.6], [57, 1, 54, 2.6], [10149, 3, 676, 4.91], [76, 2, 77, 4.16], [21793, 1, 171, 5.53], [146, 2, 108, 3.51], [3478, 2, 66, 1.52], [45, 2, 77, 4.55], [143, 2, 106, 2.75], [7004, 1, 50, 2.18], [2057, 3, 328, 3.84], [167, 3, 161, 3.91], [168, 3, 289, 3.28], [74, 1, 140, 4.42], [346, 1, 113, 2.71], [84, 2, 59, 3.68], [3495, 3, 679, 3.48], [335, 3, 951, 4.78], [7036, 1, 90, 4.74], [432, 3, 261, 2.26], [5081, 2, 135, 2.9], [214, 3, 565, 1.42], [13028, 3, 105, 2.83], [7887, 4, 122, 1.42], [11404, 2, 66, 2.34], [8649, 2, 159, 4.87], [12870, 1, 98, 6.0], [410, 1, 76, 2.64], [79, 1, 34, 1.75], [142, 2, 134, 1.63], [145, 2, 132, 1.48], [5208, 3, 489, 1.96], [3889, 1, 89, 3.61], [3893, 1, 89, 3.08]]</t>
+  </si>
+  <si>
+    <t>[[589, 2, 6, 0.2], [88, 10, 12, 0.26], [8915, 2, 5, 0.21], [2327, 2, 4, 0.52], [6935, 2, 6, 1.69], [2778, 2, 5, 0.2], [305, 2, 5, 0.45], [2328, 2, 4, 0.51], [615, 2, 4, 0.62], [5493, 2, 4, 0.2], [616, 2, 4, 0.55], [326, 2, 5, 1.22], [6936, 2, 5, 1.66], [8650, 2, 5, 2.03], [1446, 2, 4, 0.2], [7004, 1, 4, 0.99], [143, 2, 4, 1.19], [144, 2, 5, 1.04], [593, 2, 5, 0.4], [10, 2, 5, 0.67], [5491, 2, 4, 0.51], [7036, 1, 4, 1.2], [3893, 1, 4, 0.2], [1124, 2, 4, 0.95], [146, 2, 5, 1.07], [7885, 4, 4, 0.49], [7886, 4, 6, 0.44], [3891, 1, 4, 0.2], [75, 2, 5, 1.24], [362, 2, 4, 0.52], [5208, 3, 5, 0.21], [21793, 1, 4, 0.61], [3889, 1, 5, 0.2], [2054, 3, 4, 0.75], [3980, 4, 6, 1.21], [7084, 3, 4, 1.32], [12870, 1, 4, 1.93], [2050, 3, 5, 0.55], [145, 2, 4, 1.25], [5165, 1, 4, 0.86], [10149, 3, 13, 1.47], [13028, 3, 4, 1.36], [8672, 2, 5, 1.19], [2912, 1, 4, 1.02], [998, 2, 4, 0.31], [20927, 1, 4, 1.51], [9760, 29, 4, 0.2], [997, 2, 4, 1.02], [1886, 2, 4, 0.44], [2436, 4, 4, 0.68], [3, 2, 4, 0.37], [7887, 4, 4, 0.97], [972, 3, 5, 0.51], [214, 3, 9, 0.42], [6158, 2, 4, 0.44], [2424, 80, 4, 0.86], [229, 1, 4, 0.91], [955, 2, 4, 0.52], [346, 3, 5, 0.2], [5076, 1, 4, 0.81], [3495, 3, 13, 0.92], [74, 1, 4, 2.78], [5165, 2, 5, 0.86], [11953, 1, 4, 0.45], [996, 2, 4, 1.02], [11770, 1, 4, 0.2], [12721, 2, 4, 1.13], [9491, 21, 12, 0.22], [22316, 3, 4, 0.6], [1492, 1, 4, 0.2], [7573, 1, 9, 2.21], [9372, 1, 4, 1.33], [11772, 1, 4, 0.21], [2423, 80, 5, 1.72], [2912, 2, 7, 1.86], [2438, 2, 5, 1.88], [3975, 4, 5, 1.26], [11952, 1, 4, 0.85], [6497, 1, 4, 1.11], [5584, 3, 4, 2.61], [346, 1, 4, 0.95], [5209, 3, 5, 0.21], [5434, 1, 4, 1.08], [24257, 1, 4, 0.48], [823, 1, 4, 0.44], [9082, 3, 19, 0.83], [335, 3, 9, 0.87], [10407, 10, 7, 1.19], [1622, 1, 4, 0.49], [8898, 3, 4, 4.0], [2424, 29, 4, 0.37], [12764, 2, 8, 0.23], [8676, 2, 4, 1.22], [6496, 1, 4, 1.31], [3900, 3, 4, 1.65], [5946, 1, 4, 0.53], [11490, 1, 4, 0.48], [33, 1, 4, 0.66], [10388, 2, 4, 0.7], [2805, 137, 4, 1.25], [1339, 3, 10, 0.36], [7567, 3, 4, 1.33], [972, 1, 4, 0.68], [1703, 2, 4, 0.5], [13893, 2, 4, 0.91], [6805, 1, 5, 0.26], [6097, 80, 4, 0.41], [22247, 2, 4, 1.14], [2104, 3, 9, 1.27], [1163, 3, 4, 0.46], [11814, 1, 4, 0.48], [1414, 15, 4, 0.45], [8635, 3, 4, 1.12], [38, 1, 4, 0.91], [9784, 1, 4, 0.58], [1895, 3, 4, 1.49], [1274, 1, 4, 0.23], [95, 3, 15, 0.19], [11116, 1, 4, 0.56], [8283, 2, 5, 1.21], [788, 2, 4, 0.38], [8104, 1, 4, 0.93], [10386, 2, 4, 0.85], [12212, 29, 4, 0.52], [8274, 3, 4, 0.87], [114, 3, 4, 1.28], [9690, 1, 4, 0.22], [8659, 1, 4, 0.41], [19931, 1, 4, 1.26], [76, 2, 4, 0.55], [9065, 2, 4, 0.72], [4232, 80, 4, 0.38], [418, 2, 4, 0.65], [12979, 25, 7, 0.58], [12501, 1, 4, 1.24], [589, 2, 115, 2.97], [88, 10, 421, 3.17], [8915, 2, 170, 2.69], [2327, 2, 113, 3.34], [6935, 2, 209, 6.0], [2778, 2, 118, 3.31], [305, 2, 110, 3.21], [2328, 2, 113, 3.78], [615, 2, 101, 3.09], [5493, 2, 113, 1.57], [616, 2, 101, 1.9], [326, 2, 81, 3.85], [6936, 2, 209, 5.65], [8650, 2, 168, 5.79], [1446, 2, 119, 3.63], [143, 2, 111, 3.59], [144, 2, 111, 3.68], [593, 2, 171, 3.32], [10, 2, 31, 3.03], [5491, 2, 100, 1.82], [7036, 1, 97, 5.41], [3893, 1, 94, 3.1], [1124, 2, 172, 2.73], [146, 2, 113, 3.79], [7885, 4, 32, 1.42], [7886, 4, 50, 1.69], [3891, 1, 94, 3.15], [75, 2, 129, 4.27], [362, 2, 107, 3.49], [5208, 3, 522, 1.87], [21793, 1, 222, 2.06], [3889, 1, 94, 3.61], [2054, 3, 442, 2.68], [3980, 4, 426, 4.28], [7084, 3, 99, 3.94], [12870, 1, 103, 5.58], [2050, 3, 375, 2.33], [145, 2, 113, 3.54], [5165, 1, 44, 2.5], [10149, 3, 662, 4.5], [13028, 3, 134, 3.45], [8672, 2, 211, 5.36], [2912, 1, 44, 3.71], [998, 2, 179, 3.89], [9760, 29, 54, 3.6], [997, 2, 221, 3.08], [1886, 2, 145, 1.69], [2436, 4, 107, 2.19], [3, 2, 108, 3.71], [972, 3, 444, 3.65], [214, 3, 607, 1.59], [6158, 2, 241, 2.39], [2424, 80, 157, 3.61], [229, 1, 63, 3.28], [955, 2, 100, 1.84], [346, 3, 473, 3.2], [5076, 1, 122, 2.79], [3495, 3, 716, 4.0], [74, 1, 173, 6.0], [5165, 2, 354, 2.35], [11953, 1, 186, 1.71], [996, 2, 221, 2.8], [11770, 1, 163, 3.6], [12721, 2, 261, 3.02], [9491, 21, 1587, 3.27]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 6, 1.34], [305, 2, 4, 0.51], [615, 2, 4, 0.2], [2778, 2, 6, 0.2], [205, 2, 5, 0.26], [5493, 2, 4, 0.37], [6936, 2, 5, 1.35], [616, 2, 4, 0.47], [88, 10, 11, 0.2], [2049, 3, 8, 0.2], [144, 2, 5, 0.47], [8648, 2, 4, 0.71], [326, 2, 5, 0.7], [589, 2, 5, 0.2], [11681, 2, 5, 1.37], [7036, 1, 4, 1.23], [8650, 2, 6, 0.96], [593, 2, 5, 0.52], [2327, 2, 5, 0.29], [141, 2, 5, 0.53], [206, 2, 4, 0.65], [7004, 1, 4, 0.61], [3840, 1, 4, 0.38], [3891, 1, 4, 0.53], [2050, 3, 5, 1.69], [146, 2, 5, 1.07], [3980, 4, 5, 1.19], [2055, 3, 4, 1.74], [143, 2, 5, 0.51], [3889, 1, 4, 0.6], [10, 2, 4, 0.39], [7885, 4, 5, 0.2], [2054, 3, 5, 1.86], [7886, 4, 4, 0.65], [8672, 2, 5, 0.73], [12870, 1, 5, 0.92], [10993, 2, 4, 0.63], [2057, 3, 5, 1.78], [5165, 1, 4, 0.67], [7084, 3, 4, 0.28], [145, 2, 4, 1.03], [21793, 1, 4, 1.09], [523, 2, 4, 0.78], [159, 3, 5, 0.37], [7005, 1, 4, 0.47], [3981, 3, 13, 1.42], [3982, 3, 11, 1.18], [142, 2, 5, 0.52], [20927, 1, 4, 0.92], [33, 1, 4, 1.58], [956, 2, 4, 0.39], [997, 2, 5, 1.43], [6158, 2, 6, 0.43], [214, 3, 11, 0.2], [7887, 4, 5, 1.2], [5165, 2, 5, 0.66], [22316, 3, 5, 0.51], [2912, 1, 4, 0.91], [11953, 1, 5, 0.22], [35, 1, 4, 1.58], [229, 1, 4, 1.25], [998, 2, 4, 0.92], [346, 3, 5, 0.21], [82, 2, 4, 0.41], [6497, 1, 4, 0.47], [389, 4, 5, 0.88], [996, 2, 6, 1.47], [5946, 1, 4, 0.53], [1492, 1, 4, 0.46], [972, 3, 4, 1.51], [7567, 3, 4, 1.47], [11767, 1, 4, 0.43], [192, 3, 9, 1.01], [11490, 1, 4, 0.48], [6496, 1, 5, 0.55], [4176, 4, 5, 1.31], [74, 1, 5, 0.62], [411, 2, 4, 0.65], [1413, 15, 4, 0.28], [22317, 3, 5, 0.51], [2104, 3, 8, 0.2], [4253, 1, 4, 0.73], [2912, 2, 5, 0.88], [8677, 3, 5, 0.9], [2436, 4, 4, 0.44], [336, 15, 5, 0.37], [39, 1, 4, 0.51], [12212, 29, 4, 0.49], [37, 1, 4, 0.66], [201, 3, 4, 0.51], [345, 3, 4, 0.76], [11085, 2, 5, 1.53], [1274, 1, 4, 0.73], [1277, 1, 4, 0.36], [13023, 3, 4, 1.26], [21269, 3, 4, 2.99], [6494, 1, 4, 0.2], [12271, 2, 4, 0.84], [8676, 2, 4, 0.98], [22247, 2, 4, 1.39], [3979, 3, 5, 1.18], [3, 2, 4, 0.71], [823, 1, 4, 0.49], [10408, 10, 6, 1.64], [36, 1, 4, 0.91], [10388, 2, 5, 1.14], [9784, 1, 4, 0.72], [10631, 2, 4, 1.73], [2805, 137, 8, 0.94], [9, 1, 4, 0.36], [10936, 2, 4, 0.45], [202, 2, 4, 0.38], [1414, 15, 4, 0.45], [11489, 1, 4, 0.39], [8675, 2, 4, 1.02], [3048, 3, 4, 1.17], [161, 3, 5, 1.51], [13928, 1, 4, 0.47], [346, 1, 5, 0.3], [9372, 1, 4, 1.49], [12764, 2, 6, 0.58], [12225, 1, 4, 0.69], [11814, 1, 4, 0.23], [13280, 1, 4, 0.75], [10386, 2, 4, 0.36], [10407, 10, 6, 1.35], [4076, 3, 4, 1.19], [8898, 3, 4, 1.18], [79, 1, 4, 0.48], [2878, 1, 4, 0.39], [11089, 1, 4, 0.57], [13035, 3, 4, 1.32], [491, 10, 6, 0.93], [3576, 25, 4, 0.52], [23611, 3, 5, 0.5], [972, 1, 4, 0.5], [6935, 2, 188, 5.01], [305, 2, 119, 3.13], [615, 2, 95, 2.87], [2778, 2, 126, 3.26], [205, 2, 26, 2.28], [5493, 2, 104, 1.79], [6936, 2, 188, 5.39], [616, 2, 105, 1.7], [88, 10, 471, 3.03], [2049, 3, 445, 3.07], [144, 2, 100, 3.64], [8648, 2, 184, 4.9], [326, 2, 88, 2.74], [589, 2, 124, 2.8], [11681, 2, 221, 5.54], [7036, 1, 104, 4.47], [8650, 2, 184, 4.67], [593, 2, 187, 2.96], [2327, 2, 123, 3.18], [141, 2, 125, 3.78], [206, 2, 39, 1.86], [7004, 1, 76, 1.97], [3840, 1, 166, 1.53], [3891, 1, 120, 1.82], [2050, 3, 371, 5.52], [146, 2, 123, 3.76], [3980, 4, 391, 4.56], [2055, 3, 371, 5.61], [143, 2, 120, 3.14], [3889, 1, 120, 1.96], [10, 2, 102, 1.55], [7885, 4, 34, 1.47], [2054, 3, 371, 5.86], [8672, 2, 232, 4.88], [12870, 1, 111, 5.91], [10993, 2, 51, 2.01], [2057, 3, 371, 5.72], [5165, 1, 46, 2.09], [7084, 3, 106, 3.63], [145, 2, 123, 3.54], [21793, 1, 233, 2.97], [523, 2, 125, 3.25], [159, 3, 687, 1.46], [7005, 1, 76, 1.81], [3981, 3, 1311, 4.22], [3982, 3, 642, 4.54], [142, 2, 125, 3.14], [20927, 1, 47, 2.98], [956, 2, 103, 1.55], [997, 2, 58, 5.09], [6158, 2, 213, 3.44], [214, 3, 534, 1.88], [5165, 2, 367, 1.95], [22316, 3, 247, 2.67], [2912, 1, 46, 2.55], [11953, 1, 159, 2.59], [229, 1, 65, 3.21], [346, 3, 484, 2.59], [82, 2, 58, 1.62], [6497, 1, 36, 1.7], [389, 4, 138, 4.2], [996, 2, 196, 4.95], [5946, 1, 120, 1.82], [1492, 1, 36, 1.69]]</t>
+  </si>
+  <si>
+    <t>[[141, 2, 4, 0.2], [2328, 2, 4, 0.2], [8650, 2, 4, 1.21], [5491, 2, 4, 0.2], [2327, 2, 5, 0.26], [5493, 2, 4, 0.37], [589, 2, 5, 0.27], [8672, 2, 6, 0.66], [326, 2, 4, 1.37], [6935, 2, 9, 1.31], [205, 2, 4, 0.36], [206, 2, 4, 0.2], [11838, 2, 5, 0.2], [12721, 2, 5, 0.48], [6936, 2, 4, 1.5], [8915, 2, 5, 0.2], [2049, 3, 11, 0.2], [2778, 2, 6, 0.22], [1446, 2, 4, 0.2], [8676, 2, 4, 0.52], [305, 2, 5, 0.98], [615, 2, 4, 0.47], [593, 2, 5, 0.36], [21793, 1, 4, 1.62], [616, 2, 4, 0.48], [413, 1, 4, 0.66], [411, 2, 4, 0.2], [10574, 3, 6, 1.51], [412, 1, 4, 0.85], [8675, 2, 6, 0.98], [8673, 2, 5, 0.72], [143, 2, 4, 0.5], [6158, 2, 5, 0.89], [151, 1, 4, 0.45], [11836, 2, 5, 0.2], [10149, 3, 13, 0.75], [2050, 3, 5, 0.34], [3495, 3, 13, 1.28], [146, 2, 4, 0.49], [2054, 3, 5, 0.51], [75, 2, 5, 1.67], [88, 10, 9, 0.95], [7885, 4, 5, 0.69], [416, 1, 4, 0.66], [144, 2, 4, 0.47], [21798, 1, 4, 0.36], [10993, 2, 4, 0.65], [2859, 15, 4, 0.52], [346, 3, 5, 1.02], [335, 3, 10, 0.87], [2423, 80, 4, 0.79], [7705, 2, 4, 0.9], [2424, 29, 4, 1.45], [214, 3, 9, 1.24], [2423, 29, 4, 0.72], [7704, 2, 4, 0.9], [9784, 1, 4, 0.52], [5165, 1, 4, 0.65], [3848, 2, 4, 1.01], [13023, 3, 6, 1.51], [2424, 80, 4, 1.48], [346, 1, 4, 0.94], [1519, 3, 10, 0.22], [201, 3, 4, 1.01], [410, 1, 4, 0.55], [13034, 3, 5, 1.37], [345, 3, 4, 1.04], [5208, 3, 5, 0.48], [11490, 1, 4, 0.42], [6494, 1, 4, 0.48], [11770, 1, 4, 1.72], [432, 3, 5, 2.04], [7004, 1, 4, 0.41], [12373, 1, 5, 1.06], [308, 1, 5, 1.24], [2703, 3, 4, 0.83], [3430, 15, 4, 0.91], [7706, 2, 4, 0.8], [6952, 1, 4, 0.48], [20927, 1, 4, 0.7], [114, 3, 4, 0.2], [1886, 2, 4, 0.44], [3429, 15, 4, 0.42], [7886, 4, 6, 0.44], [94, 4, 4, 0.53], [1492, 1, 4, 1.09], [13928, 1, 4, 0.47], [105, 3, 4, 0.47], [11811, 1, 4, 0.94], [3981, 3, 9, 0.51], [3893, 1, 4, 1.47], [2331, 1, 4, 0.69], [3891, 1, 4, 1.47], [11089, 1, 4, 0.81], [10407, 10, 6, 1.9], [3, 2, 4, 1.8], [1490, 1, 4, 1.03], [13033, 3, 4, 0.5], [22317, 3, 5, 0.47], [5584, 3, 4, 3.29], [11674, 1, 4, 0.35], [944, 15, 4, 0.4], [1274, 1, 4, 0.36], [952, 4, 4, 1.83], [10410, 10, 6, 1.9], [7708, 2, 4, 0.9], [5812, 3, 4, 1.51], [9690, 1, 4, 1.2], [9342, 2, 4, 0.57], [10409, 10, 6, 1.67], [5946, 1, 4, 1.47], [202, 2, 4, 0.62], [1339, 3, 10, 0.36], [10398, 2, 4, 1.36], [8898, 3, 4, 0.47], [95, 3, 8, 2.52], [957, 2, 4, 0.54], [963, 3, 4, 0.93], [21003, 2, 4, 0.48], [1339, 1, 4, 0.43], [3478, 2, 4, 0.45], [20969, 3, 4, 0.86], [7703, 2, 4, 0.9], [11677, 1, 4, 1.16], [10516, 3, 5, 0.37], [823, 1, 4, 0.41], [9082, 3, 15, 0.83], [3980, 4, 5, 1.26], [14041, 3, 4, 1.27], [186, 3, 7, 0.45], [20196, 2, 4, 0.96], [3889, 1, 4, 1.47], [4253, 1, 4, 1.02], [141, 2, 120, 3.41], [2328, 2, 116, 4.39], [8650, 2, 173, 4.85], [5491, 2, 100, 1.58], [2327, 2, 116, 4.36], [5493, 2, 100, 1.96], [589, 2, 119, 3.07], [8672, 2, 220, 4.44], [326, 2, 84, 3.57], [6935, 2, 216, 6.0], [205, 2, 72, 1.55], [206, 2, 101, 1.7], [11838, 2, 205, 3.55], [12721, 2, 217, 3.99], [6936, 2, 216, 5.11], [2049, 3, 143, 3.44], [2778, 2, 144, 3.37], [1446, 2, 119, 2.17], [8676, 2, 265, 1.93], [305, 2, 115, 3.43], [615, 2, 101, 1.83], [593, 2, 153, 1.5], [21793, 1, 219, 4.86], [616, 2, 101, 1.85], [413, 1, 80, 2.2], [411, 2, 85, 2.15], [10574, 3, 383, 4.64], [412, 1, 77, 3.2], [8675, 2, 220, 4.47], [8673, 2, 259, 4.94], [143, 2, 137, 1.89], [6158, 2, 242, 3.08], [151, 1, 61, 1.83], [11836, 2, 205, 3.39], [10149, 3, 815, 4.12], [2050, 3, 369, 2.68], [3495, 3, 888, 3.48], [146, 2, 140, 1.87], [2054, 3, 375, 2.73], [75, 2, 110, 5.24], [88, 10, 516, 4.25], [7885, 4, 37, 1.91], [416, 1, 80, 2.2], [144, 2, 137, 1.83], [21798, 1, 129, 1.89], [10993, 2, 49, 2.18], [2859, 15, 64, 1.93], [346, 3, 553, 3.98], [335, 3, 1178, 4.78], [2423, 80, 170, 3.16], [7705, 2, 163, 3.42], [2424, 29, 31, 3.72], [214, 3, 337, 4.39], [2423, 29, 34, 3.1], [7704, 2, 163, 3.42], [9784, 1, 67, 1.93], [5165, 1, 44, 2.95], [3848, 2, 155, 2.87], [13023, 3, 545, 3.74], [2424, 80, 154, 3.78], [346, 1, 139, 3.74], [1519, 3, 1275, 3.06], [201, 3, 228, 4.48], [410, 1, 97, 1.99], [13034, 3, 539, 3.62], [345, 3, 277, 2.93], [5208, 3, 521, 2.08]]</t>
+  </si>
+  <si>
+    <t>[[2778, 2, 6, 0.2], [6935, 2, 7, 1.55], [6936, 2, 4, 1.17], [305, 2, 4, 0.23], [8672, 2, 5, 0.66], [1504, 2, 6, 0.58], [615, 2, 4, 0.2], [12721, 2, 5, 0.72], [2327, 2, 4, 0.2], [143, 2, 4, 1.01], [146, 2, 4, 0.87], [2328, 2, 4, 0.26], [11681, 2, 5, 0.46], [205, 2, 5, 0.37], [5491, 2, 4, 0.2], [8676, 2, 4, 0.6], [8673, 2, 5, 0.73], [11835, 2, 4, 0.55], [8650, 2, 5, 1.28], [144, 2, 5, 0.78], [308, 1, 5, 1.73], [11837, 2, 4, 0.55], [3, 2, 5, 0.66], [6097, 80, 5, 2.11], [22247, 2, 5, 1.21], [11836, 2, 5, 0.2], [6497, 1, 4, 0.2], [6097, 29, 4, 2.61], [2424, 29, 4, 0.37], [6098, 80, 4, 2.34], [11739, 2, 4, 1.36], [2054, 3, 4, 0.62], [13260, 29, 4, 0.73], [6494, 1, 4, 0.48], [3429, 15, 4, 0.36], [326, 2, 4, 0.66], [2424, 80, 4, 0.86], [75, 2, 4, 0.37], [335, 3, 10, 1.23], [1339, 1, 4, 0.43], [411, 2, 4, 0.46], [1492, 1, 4, 1.09], [1339, 3, 10, 0.36], [1050, 2, 4, 0.2], [6496, 1, 5, 1.05], [7704, 2, 4, 1.79], [214, 3, 9, 1.24], [346, 1, 4, 0.49], [346, 3, 5, 0.47], [2859, 15, 4, 0.72], [10149, 3, 13, 0.75], [345, 3, 4, 0.51], [13264, 29, 5, 0.52], [13258, 29, 4, 0.73], [1490, 1, 4, 1.03], [1243, 2, 4, 0.86], [22558, 3, 6, 0.21], [5208, 3, 10, 0.53], [201, 3, 4, 1.05], [229, 1, 4, 1.25], [10407, 10, 6, 1.9], [8943, 3, 4, 0.37], [432, 3, 4, 0.9], [2438, 1, 4, 0.62], [7705, 2, 4, 1.79], [2331, 1, 4, 0.91], [13259, 29, 4, 1.38], [2912, 1, 4, 0.96], [7706, 2, 4, 1.79], [12229, 2, 4, 0.45], [957, 2, 5, 0.76], [13928, 1, 4, 0.47], [114, 3, 4, 0.62], [3478, 2, 4, 0.45], [1163, 3, 4, 1.16], [1548, 1, 4, 1.09], [21793, 1, 4, 2.34], [9784, 1, 4, 0.74], [7036, 1, 4, 1.63], [8938, 2, 4, 0.58], [11844, 2, 4, 0.63], [11490, 1, 4, 0.46], [2703, 3, 4, 1.72], [11687, 2, 4, 0.79], [11404, 2, 4, 0.5], [13258, 25, 4, 0.73], [410, 1, 4, 0.55], [1886, 2, 4, 0.44], [159, 16, 4, 0.36], [9065, 2, 4, 0.84], [94, 4, 4, 0.6], [11690, 2, 4, 0.52], [19687, 1, 4, 0.43], [12870, 1, 4, 0.94], [413, 1, 4, 0.53], [7708, 2, 4, 1.79], [414, 1, 4, 0.61], [2438, 2, 5, 0.53], [11689, 2, 4, 0.77], [956, 2, 4, 0.57], [11161, 1, 5, 1.64], [11159, 1, 7, 1.23], [22125, 2, 4, 0.36], [5976, 1, 4, 0.85], [9760, 29, 4, 0.85], [21781, 2, 4, 0.47], [12373, 1, 5, 1.42], [105, 3, 4, 0.62], [7005, 1, 4, 0.81], [1274, 1, 4, 2.11], [5584, 3, 4, 3.29], [2991, 3, 4, 1.0], [2805, 137, 5, 1.09], [13259, 25, 4, 1.35], [11811, 1, 4, 0.94], [9785, 1, 4, 0.74], [4253, 1, 4, 0.48], [3495, 3, 13, 1.28], [20927, 1, 4, 0.7], [8600, 1, 4, 1.1], [9209, 29, 4, 0.37], [11489, 1, 4, 0.46], [9372, 1, 4, 1.06], [247, 1, 4, 1.31], [10147, 1, 4, 0.36], [9690, 1, 4, 1.2], [9491, 21, 10, 1.0], [6360, 10, 9, 0.65], [12764, 2, 5, 0.43], [8285, 2, 5, 0.49], [5769, 3, 6, 0.52], [7007, 1, 4, 0.81], [21269, 3, 4, 1.96], [5076, 1, 4, 0.91], [2778, 2, 141, 3.11], [6935, 2, 226, 6.0], [6936, 2, 256, 4.93], [305, 2, 113, 3.49], [8672, 2, 265, 3.11], [1504, 2, 156, 3.88], [615, 2, 113, 2.41], [12721, 2, 216, 4.22], [2327, 2, 116, 4.36], [143, 2, 114, 3.86], [146, 2, 116, 3.79], [2328, 2, 116, 4.39], [11681, 2, 250, 3.24], [5491, 2, 100, 1.54], [8676, 2, 220, 3.63], [8673, 2, 220, 5.48], [11835, 2, 248, 1.99], [8650, 2, 172, 6.0], [144, 2, 115, 3.95], [308, 1, 157, 5.12], [11837, 2, 248, 1.99], [3, 2, 93, 3.74], [6097, 80, 52, 5.96], [22247, 2, 216, 4.77], [11836, 2, 205, 3.47], [6497, 1, 30, 3.28], [6097, 29, 27, 6.0], [2424, 29, 31, 1.82], [11739, 2, 23, 3.34], [2054, 3, 375, 2.86], [13260, 29, 67, 3.21], [6494, 1, 47, 1.85], [3429, 15, 35, 1.56], [326, 2, 83, 2.88], [2424, 80, 156, 3.5], [75, 2, 134, 2.28], [335, 3, 1153, 3.91], [1339, 1, 67, 1.76], [411, 2, 100, 2.05], [1492, 1, 34, 3.03], [1339, 3, 1618, 1.61], [1050, 2, 44, 1.45], [6496, 1, 36, 4.1], [7704, 2, 162, 4.38], [214, 3, 337, 4.39], [346, 1, 143, 1.87], [346, 3, 573, 1.76], [2859, 15, 63, 3.73], [10149, 3, 809, 2.42], [345, 3, 276, 2.94], [13264, 29, 66, 3.03], [13258, 29, 36, 3.54], [1490, 1, 45, 4.84], [1243, 2, 90, 4.17], [22558, 3, 368, 3.76], [5208, 3, 438, 2.84], [201, 3, 276, 3.99], [229, 1, 75, 3.89], [10407, 10, 1073, 4.63], [8943, 3, 305, 1.61], [432, 3, 276, 2.97], [2438, 1, 48, 4.17], [7705, 2, 162, 4.38], [2331, 1, 108, 2.68], [13259, 29, 32, 5.1], [2912, 1, 44, 2.78]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 5, 0.91], [141, 2, 4, 0.48], [2778, 2, 5, 0.59], [362, 2, 4, 0.73], [205, 2, 4, 0.36], [6935, 2, 8, 1.55], [12721, 2, 6, 1.21], [206, 2, 4, 0.2], [8676, 2, 5, 0.6], [2049, 3, 12, 0.2], [22247, 2, 5, 1.0], [523, 2, 4, 0.66], [305, 2, 5, 0.73], [8650, 2, 5, 1.27], [8648, 2, 5, 0.88], [2776, 2, 5, 0.2], [2328, 2, 4, 1.29], [616, 2, 4, 1.29], [2327, 2, 4, 0.64], [8674, 2, 4, 0.67], [589, 2, 5, 0.2], [11835, 2, 4, 0.49], [412, 1, 4, 0.92], [143, 2, 4, 0.57], [146, 2, 4, 0.51], [6497, 1, 5, 0.2], [6097, 80, 4, 2.36], [583, 2, 4, 0.45], [326, 2, 5, 0.41], [10149, 3, 13, 0.75], [6097, 29, 5, 0.66], [11836, 2, 5, 0.54], [145, 2, 4, 0.42], [144, 2, 4, 0.54], [10574, 3, 5, 0.6], [6494, 1, 4, 0.48], [6496, 1, 4, 1.05], [2054, 3, 4, 0.81], [1413, 15, 4, 0.43], [6098, 80, 4, 0.71], [1886, 2, 6, 0.2], [944, 15, 4, 0.2], [21793, 1, 4, 2.34], [6098, 29, 4, 1.08], [247, 1, 4, 2.27], [335, 3, 10, 0.87], [3429, 15, 4, 0.36], [201, 3, 4, 0.49], [1490, 1, 4, 1.35], [21798, 1, 4, 0.36], [308, 1, 5, 0.54], [2859, 15, 4, 0.44], [6158, 2, 5, 0.89], [9998, 80, 4, 1.38], [3478, 2, 4, 0.45], [13928, 1, 4, 0.47], [7084, 3, 4, 0.7], [11489, 1, 4, 0.37], [1703, 2, 4, 0.64], [107, 2, 4, 1.42], [5812, 3, 5, 2.0], [4253, 1, 4, 1.02], [107, 7, 5, 1.39], [9342, 2, 4, 0.57], [1050, 2, 4, 0.38], [94, 4, 4, 0.48], [186, 3, 7, 0.45], [11490, 1, 4, 0.42], [1309, 1, 4, 0.9], [214, 3, 9, 1.24], [5813, 3, 6, 2.0], [10398, 2, 4, 0.37], [5811, 3, 5, 1.24], [11767, 1, 4, 0.43], [2821, 3, 8, 0.5], [9491, 21, 10, 0.51], [8599, 1, 4, 0.49], [3980, 4, 5, 1.26], [11811, 1, 4, 0.94], [11771, 1, 4, 2.24], [229, 1, 4, 0.89], [8898, 3, 5, 3.26], [8944, 3, 4, 0.37], [3495, 3, 13, 1.28], [1339, 3, 10, 0.36], [1049, 2, 4, 0.38], [9358, 1, 4, 1.42], [409, 1, 4, 1.06], [955, 2, 4, 0.52], [192, 3, 7, 1.01], [346, 3, 5, 0.47], [2991, 3, 5, 1.5], [19687, 1, 4, 0.43], [12764, 2, 5, 0.43], [13928, 2, 4, 0.49], [7036, 1, 4, 1.63], [9690, 1, 4, 1.2], [22573, 2, 4, 0.8], [10124, 1, 4, 2.18], [6575, 3, 4, 1.62], [5584, 3, 4, 3.29], [3334, 5, 4, 0.63], [8897, 3, 5, 3.26], [10147, 1, 4, 0.36], [1277, 1, 4, 0.48], [1701, 2, 4, 0.55], [11886, 2, 4, 0.75], [20927, 1, 4, 0.7], [1523, 1, 4, 0.67], [11678, 1, 4, 0.38], [4001, 3, 8, 0.93], [13260, 29, 4, 0.91], [23275, 2, 4, 0.81], [10516, 3, 5, 0.86], [11677, 1, 4, 1.16], [9065, 2, 4, 0.84], [973, 3, 5, 1.08], [45, 2, 4, 0.39], [3984, 3, 5, 0.62], [346, 1, 4, 0.49], [3979, 3, 5, 0.88], [21269, 3, 4, 0.44], [23031, 3, 4, 1.65], [19924, 2, 4, 0.73], [9373, 5, 4, 1.21], [10181, 26, 5, 0.46], [958, 2, 4, 0.36], [11690, 2, 4, 0.52], [5976, 1, 4, 1.32], [9069, 1, 4, 0.41], [23032, 3, 4, 1.46], [7005, 1, 4, 0.81], [1339, 1, 4, 0.43], [8672, 2, 220, 4.44], [141, 2, 120, 3.41], [2778, 2, 144, 2.62], [362, 2, 131, 2.62], [205, 2, 72, 1.55], [6935, 2, 215, 6.0], [12721, 2, 218, 4.83], [206, 2, 58, 1.58], [8676, 2, 220, 3.63], [2049, 3, 504, 1.66], [22247, 2, 218, 4.36], [523, 2, 120, 3.58], [305, 2, 113, 3.42], [8650, 2, 173, 4.68], [8648, 2, 173, 4.55], [2776, 2, 121, 3.42], [2328, 2, 139, 3.41], [616, 2, 100, 3.41], [2327, 2, 137, 3.51], [8674, 2, 265, 2.22], [589, 2, 141, 2.49], [11835, 2, 243, 2.97], [412, 1, 77, 3.26], [143, 2, 136, 2.03], [146, 2, 139, 1.9], [6497, 1, 30, 3.28], [6097, 80, 51, 6.0], [583, 2, 83, 2.31], [326, 2, 83, 2.88], [10149, 3, 815, 4.12], [6097, 29, 31, 3.3], [11836, 2, 243, 3.07], [145, 2, 139, 1.73], [144, 2, 136, 1.97], [10574, 3, 461, 3.81], [6494, 1, 47, 1.85], [6496, 1, 37, 3.01], [2054, 3, 126, 2.98], [1413, 15, 92, 1.76], [6098, 80, 70, 3.04], [1886, 2, 120, 3.46], [944, 15, 14, 2.26], [21793, 1, 212, 6.0], [6098, 29, 35, 4.24], [247, 1, 80, 5.3], [335, 3, 1178, 4.78], [3429, 15, 35, 1.56], [201, 3, 280, 1.87], [1490, 1, 45, 3.59], [21798, 1, 129, 1.89], [308, 1, 157, 3.94], [2859, 15, 63, 1.78], [6158, 2, 242, 3.08], [9998, 80, 108, 4.32], [3478, 2, 70, 1.8], [13928, 1, 43, 3.42], [7084, 3, 119, 2.35], [11489, 1, 43, 2.03], [1703, 2, 151, 2.46], [107, 2, 44, 3.72], [5812, 3, 532, 5.88], [4253, 1, 158, 2.89], [107, 7, 220, 3.67], [9342, 2, 427, 2.03], [1050, 2, 44, 1.45], [94, 4, 114, 1.85], [186, 3, 616, 1.77]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 8, 0.97], [305, 2, 4, 0.2], [2328, 2, 5, 0.2], [2778, 2, 5, 0.65], [8650, 2, 4, 0.46], [8672, 2, 7, 0.2], [5491, 2, 4, 0.44], [143, 2, 5, 0.51], [6936, 2, 4, 1.26], [145, 2, 4, 0.5], [11837, 2, 4, 0.45], [11681, 2, 5, 0.46], [5493, 2, 5, 0.6], [589, 2, 4, 0.36], [75, 2, 5, 0.97], [146, 2, 4, 0.57], [12721, 2, 5, 0.48], [8673, 2, 5, 0.2], [8853, 2, 4, 1.46], [326, 2, 5, 0.85], [11835, 2, 5, 0.36], [1005, 2, 4, 0.2], [144, 2, 4, 0.46], [990, 2, 4, 0.46], [8915, 2, 5, 1.14], [308, 1, 5, 1.73], [88, 10, 10, 0.19], [434, 2, 5, 0.3], [6158, 2, 6, 0.2], [2424, 29, 4, 0.37], [7704, 2, 4, 1.5], [2423, 29, 4, 0.72], [11836, 2, 4, 0.22], [2424, 80, 4, 0.86], [7705, 2, 4, 1.65], [1413, 15, 4, 0.2], [7706, 2, 4, 1.4], [10574, 3, 5, 1.51], [2054, 3, 4, 0.65], [2423, 80, 4, 0.79], [3, 2, 4, 0.79], [944, 15, 5, 0.2], [412, 1, 4, 0.92], [3478, 2, 4, 1.53], [2859, 15, 4, 1.62], [10149, 3, 13, 0.75], [12720, 2, 4, 0.98], [7004, 1, 4, 1.06], [74, 1, 4, 0.45], [346, 3, 5, 1.02], [11919, 1, 4, 0.77], [6497, 1, 4, 0.44], [1339, 3, 10, 0.36], [346, 1, 4, 0.94], [10993, 2, 4, 0.65], [13928, 1, 4, 0.47], [418, 2, 4, 0.49], [411, 2, 4, 0.37], [13260, 29, 5, 1.17], [13034, 3, 6, 0.9], [11089, 1, 4, 0.81], [7036, 1, 4, 1.63], [6952, 1, 4, 1.59], [13028, 3, 4, 0.37], [14037, 3, 4, 1.21], [1050, 2, 4, 0.2], [8274, 3, 4, 0.58], [7707, 2, 4, 1.0], [2991, 3, 4, 2.17], [1339, 1, 4, 0.43], [22317, 3, 8, 0.2], [9784, 1, 4, 0.71], [6494, 1, 4, 0.48], [7708, 2, 4, 1.5], [21793, 1, 5, 1.69], [6630, 3, 4, 2.4], [8943, 3, 4, 0.37], [1243, 2, 5, 0.7], [1490, 1, 4, 1.03], [3495, 3, 13, 1.28], [5208, 3, 5, 0.48], [2912, 1, 4, 0.85], [563, 2, 4, 0.44], [11491, 2, 4, 0.74], [11490, 1, 4, 0.37], [229, 1, 4, 1.25], [8944, 3, 4, 0.37], [5940, 3, 4, 0.2], [192, 3, 7, 1.26], [1049, 2, 4, 0.2], [6627, 3, 4, 0.2], [12229, 2, 4, 0.45], [11581, 29, 4, 0.87], [13033, 3, 4, 0.9], [2331, 1, 4, 0.91], [23275, 2, 4, 0.81], [201, 3, 4, 0.6], [5165, 1, 4, 0.73], [247, 1, 4, 1.19], [1274, 1, 4, 0.41], [214, 3, 9, 1.24], [7886, 4, 5, 0.44], [2805, 137, 5, 0.53], [21798, 1, 4, 0.47], [335, 3, 10, 0.87], [20555, 2, 4, 1.02], [8635, 3, 4, 0.58], [114, 3, 4, 1.48], [8898, 3, 5, 0.48], [6496, 1, 4, 1.3], [942, 3, 4, 0.5], [6629, 3, 4, 0.47], [1703, 2, 4, 0.53], [11770, 1, 4, 1.32], [5812, 3, 5, 0.5], [10406, 10, 7, 1.73], [202, 2, 4, 0.44], [83, 2, 4, 0.5], [9760, 29, 4, 1.71], [21269, 3, 5, 0.5], [332, 2, 4, 0.44], [215, 4, 4, 2.61], [186, 3, 9, 1.22], [9372, 1, 4, 1.06], [9827, 3, 4, 0.39], [4940, 1, 4, 0.35], [2821, 3, 8, 0.5], [10527, 3, 8, 2.22], [5811, 3, 5, 0.5], [1886, 2, 4, 0.44], [11767, 1, 4, 0.43], [11489, 1, 4, 0.37], [12373, 1, 5, 1.42], [21781, 2, 4, 0.47], [12870, 1, 4, 2.19], [6935, 2, 216, 6.0], [305, 2, 132, 2.92], [2328, 2, 116, 4.39], [2778, 2, 143, 2.79], [8650, 2, 203, 4.35], [8672, 2, 220, 4.66], [5491, 2, 100, 1.78], [143, 2, 114, 3.47], [6936, 2, 216, 5.5], [145, 2, 117, 3.46], [11837, 2, 246, 1.8], [11681, 2, 250, 3.24], [5493, 2, 83, 4.09], [589, 2, 102, 1.56], [75, 2, 112, 4.32], [146, 2, 117, 3.57], [12721, 2, 217, 3.99], [8673, 2, 221, 4.66], [8853, 2, 216, 5.41], [326, 2, 84, 2.61], [11835, 2, 243, 2.72], [1005, 2, 42, 3.58], [144, 2, 117, 3.38], [990, 2, 41, 2.06], [8915, 2, 173, 3.69], [308, 1, 157, 5.12], [88, 10, 430, 4.6], [434, 2, 98, 1.97], [6158, 2, 200, 3.82], [2424, 29, 31, 1.82], [7704, 2, 162, 3.94], [2423, 29, 34, 3.1], [11836, 2, 205, 3.39], [2424, 80, 156, 3.5], [7705, 2, 134, 5.14], [1413, 15, 78, 2.92], [7706, 2, 134, 5.14], [10574, 3, 383, 4.64], [2054, 3, 315, 3.06], [2423, 80, 170, 3.16], [3, 2, 92, 4.48], [944, 15, 34, 2.09], [412, 1, 77, 3.26], [10149, 3, 809, 2.42], [12720, 2, 217, 3.99], [74, 1, 186, 1.8], [346, 3, 553, 3.98], [11919, 1, 137, 2.41], [6497, 1, 35, 2.88], [1339, 3, 1618, 1.61], [346, 1, 139, 3.74], [10993, 2, 49, 2.18], [13928, 1, 43, 3.42], [418, 2, 130, 1.87], [411, 2, 85, 3.28], [13260, 29, 56, 4.28], [13034, 3, 538, 4.32], [11089, 1, 158, 2.49], [7036, 1, 117, 4.07], [6952, 1, 144, 5.09], [13028, 3, 133, 3.99], [1050, 2, 74, 1.52], [7707, 2, 161, 3.47], [2991, 3, 145, 6.0], [1339, 1, 67, 1.76]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 6, 0.87], [141, 2, 4, 0.2], [589, 2, 5, 0.2], [2778, 2, 4, 0.25], [6936, 2, 5, 0.44], [11681, 2, 10, 0.85], [2327, 2, 5, 0.64], [362, 2, 4, 0.56], [8648, 2, 5, 1.33], [8650, 2, 5, 1.58], [305, 2, 4, 1.0], [326, 2, 4, 1.06], [2328, 2, 5, 0.39], [2775, 2, 4, 0.25], [8853, 2, 5, 0.94], [361, 2, 5, 0.4], [143, 2, 5, 0.51], [593, 2, 6, 0.2], [140, 2, 4, 0.62], [3840, 1, 4, 0.5], [523, 2, 5, 0.54], [21793, 1, 4, 0.61], [151, 1, 5, 0.37], [412, 1, 4, 0.5], [7036, 1, 4, 0.41], [990, 2, 5, 0.2], [21798, 1, 4, 0.36], [5165, 1, 4, 0.95], [145, 2, 4, 0.88], [12349, 1, 4, 1.57], [201, 3, 6, 0.66], [6952, 1, 4, 1.29], [2050, 3, 4, 1.21], [6097, 80, 4, 2.63], [2055, 3, 5, 0.96], [345, 3, 6, 0.2], [10993, 2, 4, 0.73], [144, 2, 4, 0.61], [7084, 3, 4, 2.49], [2057, 3, 5, 0.74], [3891, 1, 4, 0.5], [11770, 1, 4, 0.44], [998, 2, 4, 0.48], [2912, 1, 4, 0.91], [5165, 2, 7, 0.53], [3893, 1, 4, 0.74], [9372, 1, 4, 0.79], [12870, 1, 4, 0.94], [12343, 1, 4, 1.57], [1886, 2, 4, 0.5], [5208, 3, 5, 0.35], [7885, 4, 4, 0.74], [12351, 1, 4, 0.82], [6097, 29, 4, 2.41], [6098, 80, 4, 1.64], [6158, 2, 5, 1.09], [2424, 80, 4, 0.86], [3334, 5, 4, 0.53], [11089, 1, 4, 0.62], [10149, 3, 15, 0.75], [12345, 1, 4, 1.57], [12344, 1, 4, 0.52], [1492, 1, 4, 0.56], [1519, 3, 12, 0.22], [4032, 29, 4, 0.55], [3889, 1, 4, 0.85], [2912, 2, 5, 0.88], [12304, 1, 4, 0.72], [13028, 3, 4, 1.36], [3576, 25, 4, 1.17], [972, 3, 4, 0.51], [411, 2, 4, 0.65], [13034, 3, 4, 1.51], [2331, 1, 4, 0.89], [229, 1, 4, 2.27], [11583, 29, 4, 0.46], [11426, 25, 4, 0.4], [11490, 1, 4, 0.65], [5151, 2, 4, 0.45], [3, 2, 4, 0.57], [5076, 1, 4, 0.55], [12764, 2, 5, 0.43], [13893, 2, 4, 0.73], [2805, 137, 4, 0.98], [3478, 2, 4, 0.87], [1703, 2, 4, 0.5], [2160, 68, 4, 1.17], [3575, 25, 4, 0.6], [13023, 3, 5, 1.25], [5812, 3, 5, 2.0], [13280, 1, 4, 1.09], [4253, 1, 4, 0.98], [2438, 2, 5, 0.53], [11404, 2, 4, 0.43], [11814, 1, 4, 0.48], [3577, 25, 4, 0.52], [9289, 29, 4, 0.48], [75, 2, 4, 0.37], [11813, 1, 4, 0.74], [9971, 2, 4, 1.82], [957, 2, 5, 0.91], [9967, 2, 4, 0.73], [11150, 2, 5, 0.4], [9069, 1, 4, 0.63], [22317, 3, 4, 0.44], [8283, 2, 5, 1.27], [1413, 15, 4, 0.68], [2878, 1, 4, 0.76], [5584, 3, 4, 1.03], [4586, 10, 11, 0.8], [9964, 2, 4, 2.27], [10407, 10, 7, 0.36], [9491, 21, 9, 1.43], [9965, 2, 4, 1.82], [114, 3, 4, 1.28], [10609, 1, 4, 0.96], [289, 3, 4, 0.84], [13249, 29, 4, 0.93], [4076, 3, 4, 1.59], [21697, 3, 4, 0.45], [14041, 3, 4, 1.27], [8926, 1, 4, 1.74], [12647, 1, 4, 0.37], [192, 3, 8, 1.79], [24257, 1, 4, 0.97], [11739, 2, 4, 0.43], [1277, 1, 4, 0.43], [336, 15, 4, 0.4], [11687, 2, 4, 0.38], [3495, 3, 10, 1.25], [1163, 3, 4, 1.16], [7324, 1, 4, 1.03], [2528, 29, 4, 0.72], [11425, 25, 4, 0.4], [1801, 1, 4, 0.86], [6935, 2, 214, 5.02], [141, 2, 121, 2.76], [589, 2, 121, 2.92], [2778, 2, 146, 2.18], [6936, 2, 214, 5.56], [11681, 2, 219, 5.84], [2327, 2, 117, 3.05], [362, 2, 93, 3.2], [8648, 2, 180, 5.72], [8650, 2, 179, 5.99], [305, 2, 51, 3.89], [326, 2, 61, 3.49], [2328, 2, 99, 3.76], [2775, 2, 146, 2.18], [8853, 2, 223, 6.0], [361, 2, 103, 3.28], [143, 2, 98, 3.43], [593, 2, 151, 3.1], [140, 2, 85, 2.04], [3840, 1, 161, 1.81], [523, 2, 103, 3.16], [21793, 1, 224, 4.07], [151, 1, 45, 2.85], [412, 1, 78, 2.04], [7036, 1, 119, 2.48], [21798, 1, 130, 1.81], [5165, 1, 32, 3.8], [145, 2, 142, 3.02], [12349, 1, 575, 5.05], [201, 3, 105, 4.45], [6952, 1, 125, 5.21], [6097, 80, 45, 6.0], [2055, 3, 444, 3.43], [345, 3, 198, 3.85], [10993, 2, 50, 2.26], [144, 2, 139, 2.02], [2057, 3, 444, 3.43], [3891, 1, 98, 3.13], [11770, 1, 209, 1.7], [998, 2, 159, 4.43], [2912, 1, 45, 2.6], [5165, 2, 357, 1.85], [3893, 1, 116, 2.27], [9372, 1, 216, 4.37], [12870, 1, 129, 2.84], [12343, 1, 575, 5.05], [1886, 2, 146, 1.81], [5208, 3, 530, 1.47], [7885, 4, 33, 2.07], [12351, 1, 575, 2.43], [6097, 29, 23, 6.0], [6098, 80, 50, 4.35], [2424, 80, 158, 4.01], [3334, 5, 168, 3.15], [11089, 1, 133, 3.34], [10149, 3, 819, 2.33], [12345, 1, 575, 5.05], [12344, 1, 482, 2.68], [1492, 1, 35, 1.93], [1519, 3, 1100, 2.83], [4032, 29, 90, 1.91], [3889, 1, 116, 2.49], [2912, 2, 359, 2.41], [12304, 1, 99, 3.73], [13028, 3, 135, 5.02]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 7, 0.97], [305, 2, 4, 0.75], [6935, 2, 8, 1.44], [2049, 3, 10, 0.22], [141, 2, 4, 0.39], [205, 2, 4, 0.31], [326, 2, 4, 0.47], [144, 2, 4, 0.49], [589, 2, 6, 0.2], [362, 2, 4, 1.32], [151, 1, 4, 0.46], [1776, 1, 5, 1.48], [146, 2, 4, 0.58], [143, 2, 4, 0.58], [206, 2, 4, 0.2], [1777, 1, 5, 0.93], [2328, 2, 5, 0.55], [8648, 2, 5, 0.77], [20252, 2, 4, 0.44], [6936, 2, 6, 1.17], [5151, 2, 4, 1.3], [8650, 2, 5, 1.15], [1007, 2, 5, 0.36], [2778, 2, 4, 0.2], [8677, 3, 5, 1.81], [76, 2, 4, 1.11], [10, 2, 5, 0.22], [8649, 2, 4, 1.15], [10149, 3, 17, 1.32], [2054, 3, 6, 0.58], [412, 1, 4, 0.91], [13028, 3, 5, 0.5], [361, 2, 4, 0.65], [413, 1, 4, 0.85], [7004, 1, 4, 0.4], [11404, 2, 4, 0.48], [7084, 3, 4, 1.38], [411, 2, 4, 0.23], [410, 1, 4, 0.36], [3478, 2, 4, 0.78], [308, 1, 4, 0.72], [167, 3, 5, 1.35], [5081, 2, 6, 0.2], [7005, 1, 4, 0.4], [3495, 3, 15, 1.31], [1124, 2, 5, 0.45], [432, 3, 4, 0.39], [9827, 3, 4, 0.2], [45, 2, 4, 1.12], [94, 4, 4, 0.51], [7036, 1, 4, 1.39], [3893, 1, 4, 0.53], [3889, 1, 4, 0.53], [168, 3, 5, 0.29], [10574, 3, 5, 0.43], [3891, 1, 4, 0.53], [2049, 1, 4, 0.8], [2336, 3, 6, 0.73], [12870, 1, 4, 2.58], [335, 3, 10, 1.09], [1504, 2, 6, 0.2], [6097, 29, 4, 2.11], [6097, 80, 4, 2.61], [998, 2, 4, 1.27], [214, 3, 9, 0.44], [11737, 2, 4, 0.66], [95, 3, 15, 0.31], [346, 1, 4, 0.56], [20927, 1, 4, 0.61], [6098, 29, 4, 2.27], [1490, 1, 5, 0.2], [79, 1, 4, 0.2], [5208, 3, 5, 0.54], [9069, 1, 5, 1.09], [22316, 3, 5, 0.49], [6098, 80, 4, 2.48], [8898, 3, 5, 2.17], [1070, 7, 10, 0.42], [14017, 3, 4, 0.67], [997, 2, 4, 1.04], [20498, 1, 5, 0.55], [346, 3, 5, 0.51], [13034, 3, 8, 1.01], [83, 2, 4, 0.44], [22554, 10, 9, 0.48], [1622, 1, 5, 0.2], [13260, 29, 4, 0.85], [7567, 3, 4, 1.37], [11116, 1, 4, 0.42], [8945, 3, 5, 1.06], [5811, 3, 4, 1.44], [22317, 3, 6, 0.26], [5946, 1, 4, 0.53], [5813, 3, 5, 1.08], [20498, 3, 6, 0.84], [5513, 2, 4, 0.52], [5209, 3, 4, 0.52], [12924, 1, 4, 0.2], [5086, 1, 6, 0.33], [995, 2, 4, 1.31], [996, 2, 4, 0.99], [33, 1, 4, 0.74], [974, 3, 4, 0.88], [972, 3, 6, 0.35], [229, 1, 4, 2.32], [1413, 15, 4, 0.45], [9691, 1, 4, 1.66], [35, 1, 4, 1.05], [8557, 3, 4, 0.2], [3049, 3, 4, 1.73], [20486, 3, 6, 0.75], [5584, 3, 4, 1.4], [8943, 3, 4, 0.37], [1703, 2, 4, 1.38], [13023, 3, 5, 1.48], [4076, 3, 4, 2.94], [2424, 80, 4, 1.7], [39, 1, 4, 0.8], [952, 4, 4, 2.23], [3900, 3, 4, 1.43], [8104, 1, 4, 0.39], [9081, 3, 7, 0.53], [11510, 3, 5, 0.72], [215, 4, 4, 3.32], [20486, 1, 4, 0.51], [34, 1, 4, 0.47], [972, 1, 4, 0.73], [114, 3, 4, 0.48], [6497, 1, 5, 1.0], [2854, 21, 10, 0.47], [3047, 3, 4, 1.0], [38, 1, 4, 0.47], [1414, 15, 4, 0.2], [20969, 3, 4, 1.11], [23611, 3, 4, 0.42], [8635, 3, 4, 0.57], [1339, 3, 12, 0.18], [8672, 2, 201, 4.82], [305, 2, 104, 3.39], [6935, 2, 243, 4.41], [2049, 3, 458, 2.26], [141, 2, 111, 2.62], [205, 2, 80, 2.23], [326, 2, 65, 2.88], [144, 2, 128, 1.59], [589, 2, 113, 1.83], [362, 2, 122, 3.19], [151, 1, 48, 2.74], [1776, 1, 90, 4.26], [146, 2, 108, 2.97], [143, 2, 106, 2.96], [206, 2, 80, 2.46], [1777, 1, 90, 3.63], [2328, 2, 108, 2.91], [8648, 2, 159, 4.42], [20252, 2, 81, 1.5], [6936, 2, 201, 4.37], [5151, 2, 18, 3.43], [8650, 2, 159, 5.07], [1007, 2, 236, 1.44], [2778, 2, 111, 2.96], [8677, 3, 208, 4.98], [76, 2, 77, 4.19], [8649, 2, 159, 4.76], [10149, 3, 609, 5.15], [2054, 3, 332, 4.02], [412, 1, 60, 3.57], [13028, 3, 105, 2.83], [361, 2, 134, 1.9], [413, 1, 62, 3.05], [7004, 1, 57, 2.6], [11404, 2, 91, 1.57], [7084, 3, 90, 3.52], [411, 2, 69, 2.76], [410, 1, 87, 2.58], [308, 1, 146, 3.09], [5081, 2, 135, 2.9], [7005, 1, 57, 2.6], [3495, 3, 679, 4.16], [1124, 2, 162, 1.64], [432, 3, 261, 2.69], [9827, 3, 63, 2.79], [45, 2, 77, 5.57], [94, 4, 85, 4.45], [7036, 1, 90, 4.38], [3893, 1, 108, 1.67], [3889, 1, 108, 1.67], [168, 3, 289, 3.37], [10574, 3, 437, 2.97], [3891, 1, 108, 1.67], [2049, 1, 12, 3.56], [2336, 3, 483, 3.17], [12870, 1, 98, 6.0], [335, 3, 1047, 4.78], [1504, 2, 145, 2.74], [6097, 29, 27, 5.7], [6097, 80, 48, 5.95], [998, 2, 196, 3.9], [214, 3, 565, 1.62], [11737, 2, 50, 2.3]]</t>
+  </si>
+  <si>
+    <t>[[305, 2, 7, 1.49], [326, 2, 11, 1.63], [589, 2, 12, 0.67], [143, 2, 7, 1.12], [205, 2, 7, 0.96], [2049, 3, 15, 2.57], [130, 1, 7, 1.81], [6935, 2, 18, 3.14], [75, 2, 11, 2.11], [144, 2, 7, 1.42], [12721, 2, 10, 1.69], [145, 2, 7, 1.0], [8915, 2, 12, 0.5], [7885, 4, 7, 0.77], [146, 2, 7, 1.0], [1776, 1, 7, 1.17], [2778, 2, 11, 1.07], [1777, 1, 7, 1.85], [151, 1, 7, 0.71], [206, 2, 9, 0.93], [20252, 2, 7, 0.85], [8648, 2, 11, 3.84], [6936, 2, 10, 2.57], [990, 2, 7, 1.83], [2328, 2, 9, 1.55], [7886, 4, 7, 0.87], [8650, 2, 11, 4.99], [141, 2, 9, 1.87], [74, 1, 7, 3.53], [83, 2, 7, 0.85], [2054, 3, 7, 1.04], [2057, 3, 7, 0.88], [7004, 1, 7, 0.71], [1492, 1, 7, 2.1], [2055, 3, 7, 0.81], [8649, 2, 11, 4.99], [345, 3, 9, 0.87], [21798, 1, 7, 0.96], [7005, 1, 7, 0.73], [7084, 3, 9, 3.68], [3889, 1, 7, 0.8], [10825, 21, 13, 2.03], [7887, 4, 7, 0.67], [33, 1, 9, 2.05], [61, 3, 7, 1.37], [21793, 1, 7, 4.02], [10149, 3, 21, 1.68], [94, 4, 9, 1.85], [432, 3, 7, 1.15], [7036, 1, 7, 2.24], [5081, 2, 7, 1.33], [12870, 1, 9, 5.0], [3478, 2, 9, 2.38], [167, 3, 7, 2.27], [308, 1, 7, 2.55], [11681, 2, 11, 4.33], [411, 2, 7, 0.71], [10, 2, 7, 1.31], [13028, 3, 7, 3.2], [9827, 3, 7, 0.53], [1504, 2, 7, 2.72], [201, 3, 9, 0.87], [3891, 1, 7, 2.38], [84, 2, 7, 3.04], [8677, 3, 9, 1.26], [168, 3, 9, 3.04], [35, 1, 7, 2.2], [1124, 2, 14, 0.93], [3893, 1, 7, 2.38], [79, 1, 7, 0.91], [5812, 3, 8, 1.9], [2336, 3, 9, 1.96], [13280, 1, 7, 1.08], [23, 1, 7, 2.78], [9760, 29, 7, 1.17], [1490, 1, 7, 0.67], [1243, 2, 7, 1.27], [11737, 2, 7, 1.03], [6158, 2, 8, 0.86], [5208, 3, 13, 1.12], [335, 3, 20, 0.7], [412, 1, 7, 2.54], [361, 2, 7, 2.12], [20927, 1, 7, 1.14], [45, 2, 7, 2.72], [214, 3, 15, 0.69], [25, 1, 7, 1.46], [1767, 25, 7, 1.14], [95, 3, 22, 0.85], [9069, 1, 7, 1.46], [10574, 3, 10, 1.28], [413, 1, 7, 2.06], [21269, 3, 7, 3.75], [3495, 3, 18, 2.25], [346, 3, 7, 0.99], [34, 1, 7, 1.65], [997, 2, 9, 2.24], [8898, 3, 7, 2.78], [11116, 1, 7, 1.08], [1766, 25, 7, 1.08], [5946, 1, 7, 2.23], [417, 2, 7, 2.12], [9691, 1, 7, 2.93], [1070, 7, 15, 0.85], [1413, 15, 7, 1.08], [14017, 3, 7, 1.75], [38, 1, 7, 1.9], [20498, 1, 9, 1.55], [9372, 1, 7, 3.6], [11954, 1, 7, 0.87], [974, 3, 7, 2.39], [5209, 3, 7, 0.71], [22317, 3, 9, 1.01], [7567, 3, 7, 0.79], [14037, 3, 11, 0.84], [972, 3, 8, 1.64], [5584, 3, 7, 3.74], [20498, 3, 8, 1.91], [9828, 3, 9, 0.76], [8945, 3, 8, 2.65], [5813, 3, 9, 3.74], [82, 2, 7, 1.88], [39, 1, 7, 1.14], [3048, 3, 7, 3.93], [1080, 3, 7, 1.59], [13034, 3, 8, 2.39], [24, 1, 7, 2.0], [955, 2, 7, 0.9], [1414, 15, 9, 0.72], [336, 15, 7, 0.98], [1767, 2, 9, 1.46], [10780, 10, 7, 3.58], [13260, 29, 7, 2.46], [4203, 1, 9, 1.06], [5812, 3, 510, 3.43], [2336, 3, 589, 2.71], [13280, 1, 320, 1.82], [23, 1, 96, 3.52], [9760, 29, 73, 1.92], [1490, 1, 42, 2.73], [1243, 2, 99, 2.01], [11737, 2, 49, 3.09], [6158, 2, 226, 2.91], [5208, 3, 192, 1.57], [335, 3, 1012, 2.3], [412, 1, 71, 4.11], [361, 2, 157, 2.86], [20927, 1, 81, 1.88], [45, 2, 94, 4.28], [214, 3, 665, 1.43], [25, 1, 96, 3.46], [1767, 25, 148, 3.15], [95, 3, 973, 3.04], [9069, 1, 124, 2.2], [10574, 3, 522, 2.02], [413, 1, 74, 3.61], [21269, 3, 225, 5.3], [3495, 3, 850, 3.93], [346, 3, 474, 2.55], [34, 1, 86, 3.45], [997, 2, 184, 3.79], [8898, 3, 243, 4.83], [11116, 1, 81, 1.82], [1766, 25, 161, 3.08], [5946, 1, 107, 3.53], [417, 2, 157, 2.86], [9691, 1, 64, 3.99], [1070, 7, 510, 2.89], [1413, 15, 101, 1.83], [14017, 3, 169, 3.96], [38, 1, 86, 3.45], [20498, 1, 85, 3.86], [9372, 1, 174, 4.9], [11954, 1, 171, 2.93], [974, 3, 127, 3.7], [5209, 3, 575, 1.47], [22317, 3, 243, 2.53], [7567, 3, 71, 1.53], [14037, 3, 350, 1.58], [972, 3, 510, 3.19], [5584, 3, 179, 5.29], [20498, 3, 450, 3.46], [9828, 3, 68, 2.44], [8945, 3, 598, 3.4], [5813, 3, 453, 4.48], [82, 2, 60, 2.62], [39, 1, 86, 2.69], [3048, 3, 209, 5.23], [1080, 3, 102, 3.14], [13034, 3, 453, 3.72], [24, 1, 86, 3.39], [955, 2, 84, 2.45], [1414, 15, 85, 2.22], [336, 15, 38, 1.43], [1767, 2, 27, 2.69], [10780, 10, 294, 5.14], [13260, 29, 56, 3.21], [4203, 1, 37, 2.61]]</t>
+  </si>
+  <si>
+    <t>[[2327, 2, 7, 1.0], [305, 2, 9, 1.32], [6935, 2, 11, 4.09], [2778, 2, 9, 1.18], [8915, 2, 8, 1.06], [144, 2, 7, 1.04], [143, 2, 7, 0.85], [2328, 2, 11, 1.39], [6936, 2, 7, 3.27], [8648, 2, 11, 3.48], [205, 2, 7, 0.74], [593, 2, 14, 1.03], [8650, 2, 7, 2.95], [145, 2, 7, 0.96], [146, 2, 7, 1.35], [326, 2, 7, 2.24], [5493, 2, 9, 0.74], [7036, 1, 11, 3.63], [2049, 3, 12, 0.73], [88, 10, 20, 2.34], [141, 2, 7, 0.72], [7004, 1, 11, 2.54], [1446, 2, 7, 1.5], [206, 2, 7, 1.7], [1124, 2, 7, 1.9], [9760, 29, 7, 1.24], [362, 2, 7, 1.0], [2055, 3, 7, 1.07], [2912, 1, 7, 1.75], [10993, 2, 9, 1.0], [12870, 1, 9, 3.23], [3893, 1, 7, 0.71], [5165, 1, 7, 1.66], [9372, 1, 7, 3.26], [7886, 4, 7, 0.8], [2054, 3, 7, 2.44], [3889, 1, 7, 1.38], [2050, 3, 7, 1.61], [1622, 1, 9, 0.59], [3891, 1, 7, 0.76], [21793, 1, 7, 1.22], [7885, 4, 7, 0.94], [7573, 1, 16, 4.3], [10, 2, 7, 1.14], [5208, 3, 11, 1.04], [10149, 3, 21, 2.82], [75, 2, 7, 2.18], [20927, 1, 9, 2.5], [997, 2, 9, 2.5], [3, 2, 9, 1.58], [11234, 2, 9, 1.55], [5165, 2, 8, 1.51], [12721, 2, 7, 2.81], [998, 2, 9, 1.56], [35, 1, 7, 2.96], [1886, 2, 9, 0.86], [972, 3, 10, 1.66], [22247, 2, 7, 2.27], [9491, 21, 32, 0.95], [996, 2, 9, 2.88], [955, 2, 7, 1.0], [33, 1, 7, 2.27], [83, 2, 9, 1.73], [229, 1, 7, 2.5], [7887, 4, 9, 2.05], [6158, 2, 7, 1.56], [2912, 2, 12, 3.02], [76, 2, 7, 1.6], [413, 1, 7, 3.14], [2424, 80, 7, 2.78], [34, 1, 7, 2.54], [13028, 3, 7, 2.62], [38, 1, 7, 2.66], [5209, 3, 7, 2.17], [13928, 1, 7, 1.83], [8676, 2, 7, 3.15], [8898, 3, 7, 4.91], [418, 2, 7, 1.25], [12212, 29, 7, 1.15], [3495, 3, 18, 2.49], [11952, 1, 7, 2.68], [39, 1, 7, 2.6], [9690, 1, 7, 0.9], [1414, 15, 7, 1.0], [5946, 1, 7, 1.02], [11490, 1, 7, 1.37], [2424, 29, 7, 0.89], [9691, 1, 7, 1.87], [411, 2, 7, 1.64], [415, 1, 7, 1.06], [1703, 2, 7, 2.08], [10407, 10, 12, 3.52], [7567, 3, 7, 2.56], [23961, 3, 7, 4.1], [11953, 1, 7, 0.87], [11772, 1, 7, 4.14], [13023, 3, 10, 1.41], [22316, 3, 7, 1.16], [12764, 2, 10, 1.76], [214, 3, 15, 0.76], [13928, 2, 7, 2.72], [74, 1, 7, 5.0], [21269, 3, 7, 2.82], [10410, 10, 15, 3.8], [13893, 2, 7, 4.55], [1163, 3, 7, 0.89], [972, 1, 7, 1.61], [2331, 1, 7, 3.07], [410, 1, 7, 1.79], [1274, 1, 7, 1.3], [5164, 1, 7, 1.73], [1523, 1, 7, 0.81], [24257, 1, 7, 1.0], [10408, 10, 8, 3.87], [1492, 1, 7, 0.87], [3430, 15, 7, 2.31], [6097, 80, 7, 1.94], [2438, 2, 8, 3.45], [13034, 3, 7, 2.6], [6097, 29, 7, 2.31], [3047, 3, 7, 2.68], [1243, 2, 7, 2.48], [10780, 10, 7, 3.18], [71, 15, 7, 0.75], [6805, 1, 7, 0.97], [1080, 3, 7, 2.78], [2436, 4, 7, 1.36], [1277, 1, 7, 1.14], [7704, 2, 7, 3.16], [7705, 2, 7, 3.16], [3429, 15, 7, 0.97], [6497, 1, 7, 2.2], [8659, 1, 7, 2.04], [19931, 1, 7, 2.43], [20486, 3, 8, 2.3], [13028, 3, 134, 3.45], [38, 1, 83, 3.92], [13928, 1, 36, 3.67], [8676, 2, 263, 3.98], [8898, 3, 219, 6.0], [418, 2, 131, 2.09], [12212, 29, 107, 2.78], [3495, 3, 890, 3.31], [11952, 1, 182, 3.52], [39, 1, 83, 3.89], [9690, 1, 59, 2.13], [1414, 15, 58, 1.76], [5946, 1, 116, 1.86], [11490, 1, 97, 2.77], [2424, 29, 31, 1.73], [9691, 1, 68, 3.27], [411, 2, 100, 2.48], [415, 1, 80, 1.89], [1703, 2, 144, 3.48], [10407, 10, 891, 5.62], [7567, 3, 63, 3.96], [23961, 3, 260, 5.56], [11953, 1, 186, 1.71], [11772, 1, 194, 4.98], [13023, 3, 531, 3.29], [22316, 3, 292, 2.0], [12764, 2, 657, 3.62], [214, 3, 607, 1.59], [13928, 2, 21, 3.56], [74, 1, 173, 6.0], [21269, 3, 258, 4.46], [10410, 10, 891, 4.95], [13893, 2, 247, 5.38], [1163, 3, 80, 1.38], [972, 1, 92, 2.45], [2331, 1, 107, 3.9], [410, 1, 48, 2.5], [1274, 1, 76, 2.14], [5164, 1, 44, 2.57], [1523, 1, 44, 1.64], [24257, 1, 131, 1.84], [10408, 10, 675, 5.51], [1492, 1, 34, 2.75], [3430, 15, 62, 3.71], [6097, 80, 61, 3.34], [2438, 2, 553, 5.1], [13034, 3, 520, 4.24], [6097, 29, 32, 3.15], [3047, 3, 238, 4.34], [1243, 2, 87, 4.11], [10780, 10, 331, 5.07], [71, 15, 52, 1.23], [6805, 1, 419, 1.81], [1080, 3, 117, 3.62], [2436, 4, 104, 2.96], [1277, 1, 177, 1.97], [7704, 2, 162, 4.0], [7705, 2, 162, 4.0], [3429, 15, 25, 1.68], [6497, 1, 34, 3.04], [8659, 1, 111, 2.88], [19931, 1, 377, 3.26], [20486, 3, 543, 3.14]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 10, 2.95], [11685, 2, 7, 3.6], [326, 2, 7, 2.44], [8648, 2, 9, 2.71], [589, 2, 8, 0.61], [2327, 2, 7, 0.98], [593, 2, 11, 1.26], [11681, 2, 9, 3.34], [305, 2, 7, 0.98], [143, 2, 9, 1.88], [141, 2, 7, 1.83], [8650, 2, 7, 2.25], [2778, 2, 7, 1.43], [6936, 2, 11, 4.58], [2049, 3, 17, 0.71], [146, 2, 7, 2.06], [88, 10, 18, 0.73], [7004, 1, 7, 1.17], [615, 2, 9, 1.53], [7036, 1, 7, 2.85], [145, 2, 7, 2.56], [362, 2, 7, 0.96], [8853, 2, 7, 2.37], [2055, 3, 7, 4.16], [10993, 2, 7, 1.21], [11737, 2, 7, 1.76], [3840, 1, 7, 0.73], [159, 3, 12, 0.8], [523, 2, 9, 1.31], [12870, 1, 7, 3.69], [2057, 3, 7, 3.77], [3889, 1, 7, 1.16], [10574, 3, 8, 0.94], [13280, 1, 7, 2.58], [7084, 3, 7, 1.6], [20927, 1, 7, 1.55], [2054, 3, 7, 3.49], [997, 2, 7, 1.75], [3, 2, 7, 1.02], [3982, 3, 17, 2.58], [21793, 1, 7, 2.17], [10, 2, 7, 0.75], [3891, 1, 7, 1.02], [61, 3, 7, 2.37], [998, 2, 7, 1.33], [11739, 2, 7, 1.41], [7885, 4, 9, 0.7], [6158, 2, 9, 1.24], [8672, 2, 11, 2.68], [5165, 1, 7, 1.29], [972, 3, 9, 3.54], [5165, 2, 8, 1.16], [346, 3, 7, 1.68], [3980, 4, 7, 2.37], [9372, 1, 7, 2.95], [411, 2, 7, 1.25], [2912, 1, 7, 1.75], [956, 2, 7, 0.75], [10388, 2, 7, 2.56], [214, 3, 15, 0.69], [9491, 21, 20, 0.87], [3981, 3, 22, 2.14], [346, 1, 7, 1.91], [1492, 1, 7, 0.89], [995, 2, 7, 2.23], [7573, 1, 11, 3.86], [33, 1, 7, 3.41], [22316, 3, 7, 0.98], [7886, 4, 9, 0.94], [13928, 1, 7, 2.49], [10386, 2, 7, 0.69], [336, 15, 7, 1.28], [161, 3, 8, 4.88], [35, 1, 7, 3.29], [7567, 3, 7, 2.7], [11770, 1, 7, 3.36], [2912, 2, 8, 3.02], [308, 1, 7, 3.55], [10631, 2, 7, 2.44], [11490, 1, 7, 1.54], [229, 1, 7, 2.41], [11953, 1, 7, 1.15], [83, 2, 7, 1.41], [22317, 3, 7, 1.67], [10780, 10, 7, 3.1], [414, 1, 7, 1.1], [10407, 10, 10, 3.29], [10149, 3, 21, 2.88], [10410, 10, 10, 3.21], [12271, 2, 7, 3.39], [972, 1, 9, 3.54], [6497, 1, 7, 0.9], [1413, 15, 7, 1.12], [23611, 3, 9, 0.72], [11767, 1, 7, 0.83], [345, 3, 7, 1.46], [8104, 1, 7, 0.73], [37, 1, 7, 1.75], [3478, 2, 7, 1.24], [74, 1, 7, 5.0], [39, 1, 7, 1.04], [10387, 2, 7, 1.96], [9971, 2, 7, 3.0], [4076, 3, 7, 2.29], [3048, 3, 7, 0.92], [152, 21, 7, 1.14], [34, 1, 7, 1.31], [24257, 1, 7, 2.73], [2331, 1, 7, 3.76], [82, 2, 7, 0.82], [20498, 3, 10, 2.46], [4001, 3, 14, 2.74], [4253, 1, 7, 1.41], [11510, 3, 8, 2.0], [45, 2, 7, 5.0], [9, 1, 7, 0.69], [416, 1, 7, 1.1], [215, 4, 7, 3.25], [12338, 29, 7, 0.75], [10936, 2, 7, 1.81], [12764, 2, 8, 1.71], [9965, 2, 7, 4.18], [202, 2, 7, 0.73], [1523, 1, 7, 3.0], [1895, 3, 7, 1.42], [105, 3, 7, 0.98], [12858, 1, 7, 1.17], [1080, 3, 7, 0.89], [2805, 137, 13, 1.88], [11489, 1, 7, 0.75], [8635, 3, 7, 2.86], [7705, 2, 7, 2.59], [3047, 3, 7, 2.68], [10093, 3, 15, 1.65], [7886, 4, 35, 1.4], [13928, 1, 44, 3.29], [10386, 2, 210, 1.49], [336, 15, 103, 2.08], [161, 3, 687, 5.68], [35, 1, 53, 3.97], [7567, 3, 67, 3.49], [11770, 1, 175, 4.15], [308, 1, 151, 4.35], [10631, 2, 204, 3.24], [11490, 1, 85, 2.88], [229, 1, 65, 3.21], [11953, 1, 159, 2.59], [83, 2, 51, 2.21], [22317, 3, 257, 3.13], [10780, 10, 355, 3.9], [414, 1, 82, 1.9], [10407, 10, 1115, 4.08], [10149, 3, 680, 4.35], [10410, 10, 1115, 4.0], [12271, 2, 51, 4.36], [972, 1, 59, 4.35], [6497, 1, 36, 1.7], [1413, 15, 81, 2.27], [23611, 3, 274, 2.5], [11767, 1, 157, 1.62], [345, 3, 233, 2.67], [8104, 1, 50, 1.18], [37, 1, 87, 2.97], [3478, 2, 73, 2.04], [74, 1, 189, 6.0], [39, 1, 106, 1.84], [10387, 2, 210, 2.76], [9971, 2, 260, 3.8], [4076, 3, 157, 3.34], [3048, 3, 260, 1.72], [34, 1, 87, 2.74], [24257, 1, 131, 3.53], [2331, 1, 109, 4.56], [82, 2, 58, 1.62], [20498, 3, 455, 4.42], [4001, 3, 616, 4.19], [4253, 1, 164, 2.21], [11510, 3, 563, 2.8], [45, 2, 103, 6.0], [9, 1, 33, 1.49], [416, 1, 82, 1.9], [215, 4, 36, 4.04], [12338, 29, 51, 1.55], [10936, 2, 127, 2.61], [12764, 2, 581, 3.17], [9965, 2, 260, 4.97], [202, 2, 71, 1.53], [1523, 1, 46, 3.8], [1895, 3, 238, 3.11], [105, 3, 192, 2.67], [12858, 1, 455, 2.61], [1080, 3, 123, 1.69], [2805, 137, 176, 2.68], [11489, 1, 105, 1.55], [8635, 3, 262, 4.54], [7705, 2, 169, 3.39], [3047, 3, 257, 3.48], [10093, 3, 788, 2.46]]</t>
+  </si>
+  <si>
+    <t>[[2049, 3, 16, 0.8], [326, 2, 8, 1.03], [6935, 2, 23, 3.05], [362, 2, 9, 2.06], [589, 2, 10, 0.5], [141, 2, 7, 1.04], [75, 2, 11, 2.24], [1776, 1, 7, 1.12], [130, 1, 7, 1.66], [8672, 2, 15, 2.16], [20252, 2, 7, 0.85], [7886, 4, 7, 1.01], [2778, 2, 8, 0.81], [305, 2, 7, 0.92], [1777, 1, 7, 2.22], [6936, 2, 10, 2.79], [593, 2, 14, 0.86], [11681, 2, 10, 5.0], [8648, 2, 9, 3.21], [206, 2, 7, 0.96], [151, 1, 7, 0.85], [88, 10, 17, 1.69], [2328, 2, 7, 0.94], [83, 2, 7, 0.96], [8650, 2, 11, 3.25], [5151, 2, 7, 2.21], [2050, 3, 7, 1.23], [412, 1, 7, 2.42], [361, 2, 7, 0.94], [144, 2, 7, 1.44], [2991, 3, 7, 4.18], [21798, 1, 7, 0.96], [57, 1, 9, 0.68], [10149, 3, 25, 3.26], [76, 2, 11, 2.6], [21793, 1, 7, 3.62], [2054, 3, 9, 3.24], [146, 2, 9, 2.43], [3478, 2, 7, 0.87], [45, 2, 7, 2.65], [143, 2, 7, 1.34], [7004, 1, 7, 0.9], [2057, 3, 7, 3.23], [167, 3, 7, 2.25], [168, 3, 7, 1.38], [74, 1, 7, 2.52], [346, 1, 7, 0.74], [84, 2, 7, 3.03], [3495, 3, 21, 1.64], [335, 3, 22, 3.87], [7036, 1, 7, 3.77], [432, 3, 7, 1.61], [5081, 2, 7, 0.84], [214, 3, 15, 0.78], [10, 2, 14, 2.41], [13028, 3, 7, 1.61], [7887, 4, 7, 0.77], [11404, 2, 7, 1.31], [8649, 2, 9, 2.97], [12870, 1, 7, 4.97], [410, 1, 7, 1.23], [79, 1, 7, 0.73], [142, 2, 7, 0.98], [145, 2, 7, 0.83], [5208, 3, 16, 1.31], [3889, 1, 7, 2.38], [3893, 1, 7, 1.67], [1492, 1, 7, 1.2], [5812, 3, 8, 2.16], [1504, 2, 9, 0.89], [94, 4, 7, 2.79], [9827, 3, 7, 0.86], [411, 2, 7, 1.46], [7005, 1, 7, 1.19], [13260, 29, 7, 1.64], [3891, 1, 7, 1.3], [1490, 1, 7, 1.35], [998, 2, 7, 2.66], [10574, 3, 9, 2.32], [21269, 3, 7, 4.99], [7567, 3, 7, 3.13], [9069, 1, 7, 2.53], [5086, 1, 9, 2.04], [11954, 1, 7, 0.92], [2878, 1, 7, 1.63], [1243, 2, 7, 2.18], [997, 2, 7, 2.64], [9691, 1, 7, 3.18], [20927, 1, 7, 1.75], [5209, 3, 7, 0.92], [1703, 2, 7, 3.38], [11914, 1, 9, 1.27], [1124, 2, 11, 0.76], [856, 1, 7, 0.92], [5660, 2, 7, 1.94], [5584, 3, 7, 3.61], [1070, 7, 13, 1.15], [8274, 3, 7, 1.76], [11811, 1, 9, 2.48], [1519, 3, 26, 0.67], [23961, 3, 7, 4.68], [8898, 3, 7, 5.0], [952, 4, 7, 5.0], [1091, 1, 7, 1.1], [22317, 3, 8, 0.9], [9081, 3, 11, 3.64], [24, 1, 7, 2.51], [5513, 2, 7, 1.0], [13034, 3, 10, 3.0], [12661, 1, 7, 4.32], [336, 15, 7, 0.8], [11767, 1, 7, 0.9], [1413, 15, 7, 1.44], [20498, 1, 7, 4.0], [6097, 80, 7, 2.16], [9760, 29, 9, 0.87], [9082, 3, 21, 1.17], [8945, 3, 10, 4.45], [4203, 1, 7, 1.27], [10529, 29, 7, 2.85], [1163, 3, 9, 1.11], [6097, 29, 9, 2.83], [2109, 3, 18, 0.77], [995, 2, 7, 4.69], [82, 2, 7, 0.67], [20498, 3, 8, 3.52], [11769, 1, 7, 0.9], [972, 3, 8, 1.2], [9372, 1, 7, 3.6], [6098, 80, 7, 1.73], [2104, 3, 10, 2.53], [5813, 3, 7, 2.12], [8635, 3, 7, 1.16], [10780, 10, 7, 4.1], [34, 1, 7, 1.23], [1492, 1, 27, 2.61], [5812, 3, 414, 4.04], [1504, 2, 145, 2.79], [94, 4, 107, 3.44], [9827, 3, 63, 2.76], [411, 2, 80, 2.23], [7005, 1, 50, 2.22], [13260, 29, 52, 2.75], [3891, 1, 89, 3.27], [1490, 1, 36, 2.76], [998, 2, 170, 4.82], [10574, 3, 437, 2.97], [21269, 3, 207, 6.0], [7567, 3, 60, 3.78], [5086, 1, 130, 3.94], [11954, 1, 172, 1.57], [2878, 1, 57, 3.04], [1243, 2, 85, 2.83], [997, 2, 170, 3.29], [9691, 1, 54, 4.56], [5209, 3, 415, 2.6], [1703, 2, 149, 4.53], [11914, 1, 62, 3.42], [1124, 2, 155, 2.32], [856, 1, 30, 1.57], [5660, 2, 125, 3.84], [5584, 3, 178, 5.02], [1070, 7, 421, 2.57], [11811, 1, 375, 3.32], [1519, 3, 1182, 2.56], [23961, 3, 243, 5.33], [8898, 3, 199, 6.0], [952, 4, 52, 6.0], [1091, 1, 34, 2.68], [22317, 3, 262, 2.31], [9081, 3, 324, 5.55], [24, 1, 80, 3.67], [5513, 2, 69, 1.65], [13034, 3, 414, 4.4], [12661, 1, 58, 5.34], [336, 15, 81, 2.71], [11767, 1, 142, 1.55], [1413, 15, 63, 2.47], [20498, 1, 85, 4.65], [6097, 80, 60, 2.81], [9760, 29, 60, 2.28], [9082, 3, 1760, 3.17], [8945, 3, 199, 5.41], [4203, 1, 41, 2.43], [10529, 29, 37, 4.0], [6097, 29, 30, 4.49], [2109, 3, 390, 2.28], [995, 2, 204, 5.34], [82, 2, 53, 1.32], [20498, 3, 509, 4.16], [11769, 1, 142, 1.55], [972, 3, 516, 1.85], [9372, 1, 198, 4.25], [6098, 80, 66, 2.38], [2104, 3, 276, 3.64], [5813, 3, 509, 2.76], [10780, 10, 321, 4.74], [34, 1, 97, 1.88]]</t>
+  </si>
+  <si>
+    <t>[[589, 2, 8, 0.87], [88, 10, 24, 1.34], [8915, 2, 10, 0.81], [2327, 2, 7, 1.0], [6935, 2, 11, 3.9], [2778, 2, 7, 0.55], [305, 2, 7, 1.07], [2328, 2, 9, 1.46], [615, 2, 11, 2.25], [5493, 2, 9, 0.74], [616, 2, 7, 1.06], [326, 2, 9, 3.02], [6936, 2, 7, 3.27], [8650, 2, 9, 4.02], [1446, 2, 7, 1.57], [7004, 1, 11, 2.54], [143, 2, 7, 2.29], [144, 2, 7, 2.25], [593, 2, 14, 1.23], [10, 2, 7, 2.55], [5491, 2, 7, 0.98], [7036, 1, 11, 3.63], [3893, 1, 9, 0.96], [1124, 2, 7, 1.9], [146, 2, 7, 2.06], [7885, 4, 7, 0.94], [7886, 4, 7, 1.05], [3891, 1, 9, 1.01], [75, 2, 7, 2.64], [362, 2, 7, 2.65], [5208, 3, 11, 1.04], [21793, 1, 7, 1.22], [3889, 1, 7, 1.88], [2054, 3, 9, 1.85], [3980, 4, 8, 2.38], [7084, 3, 7, 2.54], [12870, 1, 7, 3.72], [2050, 3, 9, 1.11], [145, 2, 7, 2.41], [5165, 1, 7, 1.66], [10149, 3, 21, 2.59], [13028, 3, 7, 2.62], [8672, 2, 11, 3.11], [2912, 1, 7, 2.33], [998, 2, 7, 1.5], [20927, 1, 7, 2.54], [9760, 29, 7, 0.97], [997, 2, 7, 2.24], [1886, 2, 7, 0.85], [2436, 4, 7, 1.36], [3, 2, 9, 1.58], [7887, 4, 7, 2.05], [972, 3, 12, 1.52], [214, 3, 15, 0.76], [6158, 2, 7, 1.56], [2424, 80, 7, 2.78], [229, 1, 7, 1.75], [955, 2, 7, 1.0], [346, 3, 7, 1.31], [5076, 1, 7, 1.95], [3495, 3, 14, 1.61], [74, 1, 7, 5.0], [5165, 2, 8, 1.51], [11953, 1, 7, 0.87], [996, 2, 7, 1.96], [11770, 1, 7, 0.96], [12721, 2, 7, 2.18], [9491, 21, 32, 0.95], [22316, 3, 7, 1.16], [1492, 1, 7, 0.97], [7573, 1, 16, 4.3], [9372, 1, 7, 3.26], [11772, 1, 9, 0.76], [2423, 80, 9, 3.54], [2912, 2, 12, 3.02], [2438, 2, 8, 3.32], [3975, 4, 7, 2.76], [11952, 1, 7, 2.68], [6497, 1, 7, 2.2], [5584, 3, 7, 5.0], [346, 1, 7, 2.81], [5209, 3, 9, 1.29], [5434, 1, 7, 2.08], [24257, 1, 7, 0.92], [823, 1, 7, 2.33], [9082, 3, 32, 3.08], [335, 3, 15, 3.87], [10407, 10, 12, 3.52], [1622, 1, 7, 0.94], [8898, 3, 7, 5.0], [2424, 29, 7, 0.89], [12764, 2, 23, 1.61], [8676, 2, 7, 3.15], [6496, 1, 7, 2.59], [3900, 3, 7, 2.45], [5946, 1, 7, 1.02], [11490, 1, 7, 0.92], [33, 1, 7, 1.27], [10388, 2, 7, 3.31], [2805, 137, 7, 2.41], [1339, 3, 16, 0.66], [7567, 3, 7, 2.56], [972, 1, 7, 1.61], [1703, 2, 7, 1.39], [13893, 2, 7, 4.55], [6805, 1, 9, 0.97], [6097, 80, 7, 2.16], [22247, 2, 7, 2.27], [2104, 3, 15, 2.33], [1163, 3, 7, 0.89], [11814, 1, 7, 0.92], [1414, 15, 7, 1.0], [8635, 3, 7, 2.25], [38, 1, 7, 1.75], [9784, 1, 7, 1.12], [1895, 3, 7, 4.16], [1274, 1, 7, 1.26], [95, 3, 22, 1.12], [11116, 1, 7, 1.08], [8283, 2, 8, 2.14], [788, 2, 7, 1.02], [8104, 1, 7, 1.79], [10386, 2, 7, 3.17], [12212, 29, 7, 1.0], [8274, 3, 7, 2.18], [114, 3, 7, 2.46], [9690, 1, 7, 0.9], [8659, 1, 7, 1.64], [19931, 1, 7, 2.43], [76, 2, 7, 2.69], [9065, 2, 7, 1.39], [4232, 80, 7, 1.98], [418, 2, 7, 1.25], [12979, 25, 12, 1.1], [12501, 1, 7, 2.39], [22316, 3, 292, 2.0], [1492, 1, 28, 3.35], [7573, 1, 276, 5.69], [9372, 1, 211, 4.09], [11772, 1, 164, 3.22], [2423, 80, 136, 5.38], [2438, 2, 553, 5.1], [3975, 4, 426, 4.36], [11952, 1, 182, 3.52], [6497, 1, 34, 3.04], [5584, 3, 218, 5.85], [346, 1, 139, 3.65], [5209, 3, 522, 2.12], [5434, 1, 44, 3.48], [24257, 1, 111, 2.15], [823, 1, 36, 4.21], [9082, 3, 2263, 3.92], [335, 3, 1181, 4.7], [10407, 10, 891, 5.62], [1622, 1, 100, 1.78], [8898, 3, 261, 6.0], [2424, 29, 31, 1.73], [12764, 2, 550, 3.67], [8676, 2, 263, 3.98], [6496, 1, 37, 3.42], [5946, 1, 116, 1.86], [11490, 1, 100, 1.76], [33, 1, 103, 2.1], [10388, 2, 202, 4.15], [2805, 137, 167, 3.24], [1339, 3, 1621, 1.49], [7567, 3, 63, 3.96], [972, 1, 92, 2.45], [1703, 2, 151, 2.23], [13893, 2, 247, 5.38], [6805, 1, 401, 2.84], [6097, 80, 64, 2.99], [22247, 2, 261, 3.11], [2104, 3, 308, 3.17], [1163, 3, 80, 1.38], [11814, 1, 207, 1.76], [1414, 15, 58, 1.76], [38, 1, 99, 3.15], [9784, 1, 67, 1.96], [1895, 3, 264, 6.0], [1274, 1, 73, 3.14], [95, 3, 999, 2.69], [11116, 1, 74, 1.92], [8283, 2, 433, 2.96], [788, 2, 17, 1.5], [8104, 1, 189, 2.63], [10386, 2, 202, 4.0], [12212, 29, 111, 1.84], [114, 3, 215, 3.83], [9690, 1, 59, 2.13], [8659, 1, 107, 3.52], [19931, 1, 377, 3.26], [76, 2, 101, 3.52], [9065, 2, 278, 2.23], [4232, 80, 137, 2.82], [418, 2, 131, 2.09], [12979, 25, 610, 1.93], [12501, 1, 274, 3.23]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 10, 2.95], [305, 2, 7, 0.98], [615, 2, 9, 0.92], [2778, 2, 9, 1.07], [205, 2, 9, 0.98], [5493, 2, 7, 1.0], [6936, 2, 9, 3.69], [616, 2, 7, 0.9], [88, 10, 14, 0.73], [2049, 3, 17, 0.71], [144, 2, 7, 2.84], [8648, 2, 9, 2.71], [326, 2, 7, 1.94], [589, 2, 8, 0.61], [11681, 2, 9, 3.84], [7036, 1, 7, 2.37], [8650, 2, 9, 2.48], [593, 2, 11, 1.29], [2327, 2, 7, 0.98], [141, 2, 7, 1.83], [206, 2, 7, 1.25], [7004, 1, 7, 1.17], [3840, 1, 7, 0.73], [3891, 1, 7, 1.02], [2050, 3, 7, 3.3], [146, 2, 7, 2.31], [3980, 4, 7, 2.37], [2055, 3, 7, 3.41], [143, 2, 7, 1.23], [3889, 1, 7, 1.16], [10, 2, 7, 0.75], [7885, 4, 7, 1.02], [2054, 3, 7, 3.66], [7886, 4, 7, 1.25], [8672, 2, 11, 2.68], [12870, 1, 7, 3.96], [10993, 2, 7, 1.21], [2057, 3, 7, 3.52], [5165, 1, 7, 1.29], [7084, 3, 7, 1.69], [145, 2, 7, 2.23], [21793, 1, 7, 2.17], [523, 2, 7, 1.5], [159, 3, 8, 0.66], [7005, 1, 7, 1.01], [3981, 3, 21, 2.47], [3982, 3, 17, 2.58], [142, 2, 7, 1.25], [20927, 1, 7, 2.25], [33, 1, 11, 3.41], [956, 2, 7, 0.75], [997, 2, 9, 4.11], [6158, 2, 11, 2.0], [214, 3, 14, 0.74], [7887, 4, 7, 2.05], [5165, 2, 8, 1.16], [22316, 3, 7, 1.23], [2912, 1, 7, 1.75], [11953, 1, 7, 1.15], [35, 1, 11, 3.32], [229, 1, 7, 2.41], [998, 2, 9, 4.07], [346, 3, 7, 1.53], [82, 2, 7, 0.82], [6497, 1, 7, 0.9], [389, 4, 7, 3.4], [996, 2, 9, 3.33], [5946, 1, 7, 1.02], [1492, 1, 7, 0.89], [972, 3, 11, 3.54], [7567, 3, 11, 3.69], [11767, 1, 7, 0.83], [192, 3, 22, 3.37], [11490, 1, 7, 0.92], [6496, 1, 7, 1.59], [4176, 4, 7, 3.49], [74, 1, 7, 4.19], [411, 2, 7, 1.25], [1413, 15, 7, 1.12], [22317, 3, 7, 1.42], [2104, 3, 12, 0.7], [4253, 1, 7, 1.41], [2912, 2, 8, 1.56], [8677, 3, 7, 2.82], [2436, 4, 7, 0.85], [336, 15, 7, 1.53], [39, 1, 7, 1.79], [12212, 29, 7, 0.94], [37, 1, 7, 1.52], [201, 3, 9, 2.36], [345, 3, 7, 1.46], [11085, 2, 8, 3.16], [1274, 1, 7, 1.41], [1277, 1, 7, 1.14], [13023, 3, 7, 2.44], [21269, 3, 7, 5.0], [6494, 1, 7, 0.87], [12271, 2, 7, 2.76], [8676, 2, 7, 1.94], [22247, 2, 9, 3.44], [3979, 3, 8, 2.31], [3, 2, 7, 2.1], [823, 1, 7, 1.26], [10408, 10, 10, 3.19], [36, 1, 7, 1.75], [10388, 2, 7, 2.51], [9784, 1, 7, 1.39], [10631, 2, 9, 3.46], [2805, 137, 13, 1.88], [9, 1, 7, 0.69], [10936, 2, 7, 1.81], [202, 2, 7, 0.73], [1414, 15, 7, 1.0], [11489, 1, 7, 0.75], [8675, 2, 7, 2.91], [3048, 3, 7, 2.25], [161, 3, 8, 4.88], [13928, 1, 7, 2.49], [346, 1, 7, 1.72], [9372, 1, 7, 2.95], [12764, 2, 8, 1.46], [12225, 1, 7, 2.51], [11814, 1, 7, 0.92], [13280, 1, 7, 2.58], [10386, 2, 7, 0.69], [10407, 10, 10, 3.29], [4076, 3, 7, 2.29], [8898, 3, 7, 2.27], [79, 1, 7, 0.92], [2878, 1, 9, 0.97], [11089, 1, 7, 1.95], [13035, 3, 7, 2.54], [491, 10, 10, 1.82], [3576, 25, 7, 1.0], [23611, 3, 9, 0.99], [972, 1, 7, 1.51], [11767, 1, 157, 1.62], [192, 3, 1107, 5.01], [11490, 1, 105, 1.72], [6496, 1, 32, 2.75], [4176, 4, 391, 4.95], [74, 1, 134, 4.98], [411, 2, 105, 2.05], [1413, 15, 81, 2.27], [22317, 3, 257, 3.13], [2104, 3, 316, 1.49], [4253, 1, 164, 2.21], [2912, 2, 368, 2.35], [8677, 3, 241, 4.26], [2436, 4, 112, 1.65], [336, 15, 84, 2.97], [39, 1, 87, 3.49], [12212, 29, 115, 1.74], [37, 1, 87, 2.97], [201, 3, 233, 4.06], [345, 3, 233, 2.67], [11085, 2, 435, 4.89], [1274, 1, 78, 2.21], [1277, 1, 183, 1.94], [13023, 3, 563, 3.24], [21269, 3, 239, 6.0], [6494, 1, 41, 2.56], [12271, 2, 61, 3.55], [8676, 2, 273, 2.74], [22247, 2, 231, 4.85], [3979, 3, 756, 3.11], [3, 2, 96, 3.55], [823, 1, 38, 2.06], [10408, 10, 596, 4.91], [36, 1, 87, 2.97], [10388, 2, 178, 4.46], [9784, 1, 69, 2.19], [2805, 137, 176, 2.68], [9, 1, 33, 1.49], [10936, 2, 127, 2.61], [202, 2, 71, 1.53], [1414, 15, 84, 1.78], [11489, 1, 105, 1.55], [8675, 2, 273, 3.71], [3048, 3, 211, 3.47], [161, 3, 687, 5.68], [13928, 1, 44, 3.29], [346, 1, 121, 2.76], [9372, 1, 219, 3.75], [12764, 2, 581, 3.17], [12225, 1, 156, 3.31], [11814, 1, 176, 2.62], [13280, 1, 303, 3.38], [10386, 2, 210, 1.49], [10407, 10, 1115, 4.08], [4076, 3, 191, 3.09], [8898, 3, 265, 3.07], [79, 1, 46, 1.72], [2878, 1, 64, 2.45], [11089, 1, 162, 2.75], [13035, 3, 287, 3.34], [491, 10, 343, 3.77], [3576, 25, 97, 1.8], [23611, 3, 333, 1.79], [972, 1, 94, 2.3]]</t>
+  </si>
+  <si>
+    <t>[[141, 2, 9, 0.88], [2328, 2, 11, 1.85], [8650, 2, 7, 2.38], [5491, 2, 11, 0.65], [2327, 2, 11, 1.82], [5493, 2, 7, 1.03], [589, 2, 9, 1.2], [8672, 2, 15, 2.15], [326, 2, 7, 2.64], [6935, 2, 23, 4.24], [205, 2, 7, 0.69], [206, 2, 7, 0.77], [11838, 2, 11, 1.02], [12721, 2, 11, 1.45], [6936, 2, 7, 2.89], [8915, 2, 7, 1.21], [2049, 3, 63, 2.91], [2778, 2, 13, 1.59], [1446, 2, 9, 0.74], [8676, 2, 7, 1.0], [305, 2, 7, 2.14], [615, 2, 7, 0.9], [593, 2, 8, 0.63], [21793, 1, 8, 3.94], [616, 2, 7, 0.92], [413, 1, 7, 1.27], [411, 2, 7, 0.83], [10574, 3, 9, 2.49], [412, 1, 7, 2.27], [8675, 2, 11, 2.19], [8673, 2, 9, 2.91], [143, 2, 7, 0.96], [6158, 2, 11, 2.15], [151, 1, 7, 0.9], [11836, 2, 7, 1.11], [10149, 3, 21, 3.19], [2050, 3, 7, 0.64], [3495, 3, 21, 2.56], [146, 2, 7, 0.94], [2054, 3, 7, 1.4], [75, 2, 7, 3.21], [88, 10, 16, 3.31], [7885, 4, 9, 1.37], [416, 1, 7, 1.27], [144, 2, 7, 0.9], [21798, 1, 7, 0.96], [10993, 2, 7, 1.25], [2859, 15, 7, 1.0], [346, 3, 8, 3.06], [335, 3, 17, 3.87], [2423, 80, 7, 2.23], [7705, 2, 7, 2.49], [2424, 29, 7, 2.79], [214, 3, 15, 3.59], [2423, 29, 7, 2.17], [7704, 2, 7, 2.49], [9784, 1, 7, 1.0], [5165, 1, 7, 2.02], [3848, 2, 7, 1.94], [13023, 3, 10, 2.81], [2424, 80, 7, 2.85], [346, 1, 7, 2.81], [1519, 3, 16, 0.67], [201, 3, 7, 2.66], [410, 1, 7, 1.06], [13034, 3, 8, 2.69], [345, 3, 7, 1.99], [5208, 3, 11, 1.15], [11490, 1, 7, 0.81], [6494, 1, 7, 0.92], [11770, 1, 7, 3.31], [432, 3, 11, 4.94], [7004, 1, 7, 0.81], [12373, 1, 11, 2.57], [308, 1, 9, 2.72], [2703, 3, 7, 3.33], [3430, 15, 7, 1.75], [7706, 2, 9, 2.62], [6952, 1, 7, 1.12], [20927, 1, 7, 1.35], [114, 3, 7, 1.1], [1886, 2, 7, 0.85], [3429, 15, 7, 0.81], [7886, 4, 9, 1.06], [94, 4, 7, 2.07], [1492, 1, 7, 2.1], [13928, 1, 7, 2.49], [105, 3, 7, 0.9], [11811, 1, 7, 1.82], [3981, 3, 15, 0.91], [3893, 1, 7, 2.83], [2331, 1, 7, 3.07], [3891, 1, 7, 2.83], [11089, 1, 7, 1.56], [10407, 10, 10, 3.72], [3, 2, 7, 3.47], [1490, 1, 7, 3.91], [13033, 3, 7, 1.39], [22317, 3, 8, 0.83], [5584, 3, 7, 5.0], [11674, 1, 7, 0.88], [944, 15, 7, 0.77], [1274, 1, 7, 0.69], [952, 4, 7, 3.58], [10410, 10, 10, 3.76], [7708, 2, 7, 2.49], [5812, 3, 7, 2.91], [9690, 1, 7, 3.09], [9342, 2, 7, 1.1], [10409, 10, 11, 3.34], [5946, 1, 7, 2.83], [202, 2, 7, 1.37], [1339, 3, 17, 0.66], [10398, 2, 7, 2.62], [8898, 3, 7, 1.18], [95, 3, 13, 4.54], [957, 2, 7, 1.04], [963, 3, 7, 2.7], [21003, 2, 7, 0.96], [1339, 1, 7, 0.83], [3478, 2, 7, 0.87], [20969, 3, 7, 1.66], [7703, 2, 7, 2.49], [11677, 1, 7, 2.4], [10516, 3, 8, 0.65], [823, 1, 7, 0.79], [9082, 3, 24, 2.83], [3980, 4, 7, 2.76], [14041, 3, 7, 2.5], [186, 3, 12, 0.84], [20196, 2, 7, 4.04], [3889, 1, 7, 2.83], [4253, 1, 7, 1.96], [11490, 1, 101, 1.74], [6494, 1, 47, 1.85], [11770, 1, 193, 4.23], [432, 3, 231, 6.0], [7004, 1, 73, 1.74], [12373, 1, 502, 3.5], [308, 1, 153, 4.75], [2703, 3, 282, 4.26], [3430, 15, 64, 2.68], [7706, 2, 161, 4.65], [6952, 1, 174, 2.05], [20927, 1, 73, 2.28], [114, 3, 221, 3.13], [1886, 2, 145, 1.78], [3429, 15, 49, 1.74], [7886, 4, 64, 2.53], [94, 4, 111, 3.0], [1492, 1, 34, 3.03], [13928, 1, 43, 3.42], [105, 3, 225, 1.83], [11811, 1, 417, 2.74], [3981, 3, 1548, 1.83], [3893, 1, 114, 3.76], [2331, 1, 107, 4.0], [3891, 1, 114, 3.76], [11089, 1, 158, 2.49], [10407, 10, 1073, 4.63], [3, 2, 109, 4.4], [1490, 1, 45, 4.84], [13033, 3, 539, 2.33], [22317, 3, 295, 1.75], [5584, 3, 210, 6.0], [11674, 1, 190, 1.8], [944, 15, 41, 1.7], [1274, 1, 75, 1.62], [952, 4, 67, 4.51], [10410, 10, 1073, 4.67], [7708, 2, 163, 3.42], [5812, 3, 545, 3.84], [9690, 1, 69, 4.01], [9342, 2, 427, 2.03], [10409, 10, 1618, 4.3], [5946, 1, 114, 3.76], [202, 2, 68, 2.3], [1339, 3, 1618, 1.61], [10398, 2, 134, 3.55], [8898, 3, 257, 2.11], [95, 3, 911, 5.48], [957, 2, 99, 1.97], [963, 3, 366, 3.64], [21003, 2, 261, 1.89], [1339, 1, 67, 1.76], [3478, 2, 70, 1.8], [20969, 3, 542, 2.58], [7703, 2, 163, 3.42], [11677, 1, 412, 3.33], [10516, 3, 550, 1.58], [823, 1, 37, 1.72], [9082, 3, 2258, 3.75], [3980, 4, 437, 4.52], [14041, 3, 605, 3.44], [186, 3, 616, 1.77], [20196, 2, 261, 4.97], [3889, 1, 114, 3.76], [4253, 1, 158, 2.89]]</t>
+  </si>
+  <si>
+    <t>[[2778, 2, 17, 1.08], [6935, 2, 28, 5.0], [6936, 2, 9, 2.9], [305, 2, 9, 1.46], [8672, 2, 15, 2.18], [1504, 2, 14, 1.49], [615, 2, 9, 1.48], [12721, 2, 11, 1.74], [2327, 2, 11, 1.82], [143, 2, 9, 2.5], [146, 2, 7, 2.14], [2328, 2, 11, 1.85], [11681, 2, 13, 2.3], [205, 2, 7, 1.24], [5491, 2, 11, 0.61], [8676, 2, 9, 1.6], [8673, 2, 11, 2.44], [11835, 2, 7, 1.06], [8650, 2, 14, 4.38], [144, 2, 7, 2.11], [308, 1, 11, 4.19], [11837, 2, 7, 1.06], [3, 2, 7, 2.41], [6097, 80, 7, 3.92], [22247, 2, 7, 2.33], [11836, 2, 9, 1.19], [6497, 1, 7, 0.85], [6097, 29, 7, 4.96], [2424, 29, 7, 0.89], [6098, 80, 9, 4.33], [11739, 2, 7, 2.62], [2054, 3, 9, 1.53], [13260, 29, 7, 2.28], [6494, 1, 7, 0.92], [3429, 15, 7, 0.69], [326, 2, 7, 1.27], [2424, 80, 7, 2.57], [75, 2, 7, 1.36], [335, 3, 17, 2.98], [1339, 1, 7, 0.83], [411, 2, 7, 1.12], [1492, 1, 7, 2.1], [1339, 3, 17, 0.66], [1050, 2, 7, 0.73], [6496, 1, 7, 2.07], [7704, 2, 7, 3.45], [214, 3, 15, 3.59], [346, 1, 7, 0.94], [346, 3, 8, 0.83], [2859, 15, 7, 1.7], [10149, 3, 21, 1.49], [345, 3, 7, 2.01], [13264, 29, 7, 1.25], [13258, 29, 13, 2.61], [1490, 1, 7, 3.91], [1243, 2, 7, 2.14], [22558, 3, 9, 1.74], [5208, 3, 13, 1.3], [201, 3, 7, 3.06], [229, 1, 7, 2.96], [10407, 10, 10, 3.72], [8943, 3, 7, 0.71], [432, 3, 7, 2.04], [2438, 1, 7, 3.24], [7705, 2, 7, 3.45], [2331, 1, 7, 1.75], [13259, 29, 11, 4.17], [2912, 1, 7, 1.85], [7706, 2, 7, 3.45], [12229, 2, 7, 0.87], [957, 2, 7, 1.43], [13928, 1, 7, 2.49], [114, 3, 7, 1.39], [3478, 2, 7, 0.87], [1163, 3, 7, 2.33], [1548, 1, 7, 2.1], [21793, 1, 8, 5.0], [9784, 1, 7, 1.42], [7036, 1, 7, 3.69], [8938, 2, 7, 1.12], [11844, 2, 7, 1.21], [11490, 1, 7, 1.38], [2703, 3, 7, 4.45], [11687, 2, 7, 1.52], [11404, 2, 7, 0.96], [13258, 25, 7, 2.57], [410, 1, 7, 1.06], [1886, 2, 7, 0.85], [159, 16, 7, 0.69], [9065, 2, 7, 1.62], [94, 4, 7, 1.16], [11690, 2, 7, 1.0], [19687, 1, 7, 2.28], [12870, 1, 7, 3.68], [413, 1, 7, 1.02], [7708, 2, 7, 3.45], [414, 1, 7, 1.17], [2438, 2, 8, 2.54], [11689, 2, 7, 1.48], [956, 2, 7, 1.1], [11161, 1, 10, 3.62], [11159, 1, 14, 2.72], [22125, 2, 7, 0.69], [5976, 1, 7, 1.64], [9760, 29, 7, 1.64], [21781, 2, 7, 0.9], [12373, 1, 11, 3.44], [105, 3, 7, 1.24], [7005, 1, 7, 1.56], [1274, 1, 7, 4.06], [5584, 3, 7, 5.0], [2991, 3, 7, 2.7], [2805, 137, 10, 2.4], [13259, 25, 7, 2.6], [11811, 1, 7, 1.82], [9785, 1, 7, 1.42], [4253, 1, 7, 1.41], [3495, 3, 21, 2.56], [20927, 1, 7, 1.35], [8600, 1, 7, 2.12], [9209, 29, 7, 0.71], [11489, 1, 7, 1.38], [9372, 1, 7, 4.12], [247, 1, 7, 3.34], [10147, 1, 7, 0.69], [9690, 1, 7, 3.09], [9491, 21, 16, 3.13], [6360, 10, 15, 1.18], [12764, 2, 8, 1.69], [8285, 2, 8, 0.85], [5769, 3, 10, 0.93], [7007, 1, 7, 1.56], [21269, 3, 7, 3.77], [5076, 1, 7, 1.75], [7706, 2, 162, 4.38], [12229, 2, 138, 2.9], [957, 2, 82, 3.46], [13928, 1, 43, 3.42], [114, 3, 224, 2.32], [3478, 2, 70, 1.8], [1548, 1, 91, 3.03], [21793, 1, 212, 6.0], [9784, 1, 67, 2.35], [7036, 1, 118, 4.62], [8938, 2, 175, 2.05], [11844, 2, 253, 2.13], [11490, 1, 100, 2.31], [2703, 3, 266, 5.38], [11687, 2, 277, 2.46], [11404, 2, 96, 1.89], [13258, 25, 72, 3.5], [410, 1, 97, 1.99], [1886, 2, 145, 1.78], [159, 16, 42, 1.5], [9065, 2, 277, 2.55], [94, 4, 111, 3.19], [11690, 2, 277, 1.93], [19687, 1, 28, 3.21], [12870, 1, 128, 4.61], [413, 1, 79, 1.95], [7708, 2, 162, 4.38], [414, 1, 79, 2.1], [2438, 2, 573, 3.47], [11689, 2, 277, 2.41], [956, 2, 98, 2.03], [11161, 1, 453, 4.54], [11159, 1, 446, 3.64], [22125, 2, 58, 1.62], [5976, 1, 145, 2.57], [9760, 29, 66, 2.57], [21781, 2, 96, 1.83], [12373, 1, 493, 4.36], [105, 3, 224, 2.17], [7005, 1, 73, 2.49], [1274, 1, 74, 4.99], [5584, 3, 210, 6.0], [2991, 3, 146, 3.63], [2805, 137, 169, 3.33], [13259, 25, 64, 3.53], [11811, 1, 417, 2.74], [9785, 1, 67, 2.35], [4253, 1, 156, 3.44], [3495, 3, 888, 3.48], [20927, 1, 73, 2.28], [8600, 1, 133, 3.05], [9209, 29, 30, 1.64], [11489, 1, 100, 2.31], [9372, 1, 211, 5.04], [247, 1, 79, 4.27], [10147, 1, 62, 1.62], [9690, 1, 69, 4.01], [9491, 21, 1806, 4.07], [6360, 10, 682, 2.11], [12764, 2, 682, 2.62], [8285, 2, 444, 1.79], [5769, 3, 1013, 1.87], [7007, 1, 73, 2.49], [21269, 3, 266, 4.71], [5076, 1, 121, 2.68]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 12, 2.4], [141, 2, 7, 0.92], [2778, 2, 13, 1.69], [362, 2, 7, 1.69], [205, 2, 7, 0.69], [6935, 2, 19, 5.0], [12721, 2, 17, 3.77], [206, 2, 7, 0.77], [8676, 2, 7, 1.35], [2049, 3, 17, 0.73], [22247, 2, 7, 1.83], [523, 2, 7, 1.27], [305, 2, 7, 1.12], [8650, 2, 9, 2.89], [8648, 2, 7, 3.37], [2776, 2, 7, 1.38], [2328, 2, 7, 2.48], [616, 2, 7, 2.48], [2327, 2, 7, 1.48], [8674, 2, 7, 1.29], [589, 2, 7, 1.56], [11835, 2, 7, 0.94], [412, 1, 7, 2.34], [143, 2, 7, 1.1], [146, 2, 7, 0.98], [6497, 1, 9, 0.85], [6097, 80, 7, 4.54], [583, 2, 7, 1.39], [326, 2, 7, 1.48], [10149, 3, 21, 3.19], [6097, 29, 7, 1.85], [11836, 2, 7, 1.29], [145, 2, 7, 0.81], [144, 2, 7, 1.04], [10574, 3, 10, 2.88], [6494, 1, 7, 0.92], [6496, 1, 7, 2.09], [2054, 3, 7, 2.44], [1413, 15, 7, 0.83], [6098, 80, 7, 2.11], [1886, 2, 20, 1.67], [944, 15, 7, 0.77], [21793, 1, 8, 5.0], [6098, 29, 7, 2.21], [247, 1, 7, 4.37], [335, 3, 17, 3.87], [3429, 15, 7, 0.69], [201, 3, 7, 0.94], [1490, 1, 7, 2.66], [21798, 1, 7, 0.96], [308, 1, 14, 1.66], [2859, 15, 7, 0.85], [6158, 2, 11, 2.15], [9998, 80, 7, 3.39], [3478, 2, 7, 0.87], [13928, 1, 7, 2.49], [7084, 3, 7, 1.42], [11489, 1, 7, 1.3], [1703, 2, 7, 1.53], [107, 2, 7, 2.8], [5812, 3, 9, 3.96], [4253, 1, 7, 1.96], [107, 7, 8, 2.74], [9342, 2, 7, 1.1], [1050, 2, 7, 0.73], [94, 4, 7, 0.92], [186, 3, 12, 0.84], [11490, 1, 7, 0.81], [1309, 1, 7, 3.14], [214, 3, 15, 3.59], [5813, 3, 10, 3.68], [10398, 2, 7, 1.32], [5811, 3, 8, 4.0], [11767, 1, 7, 0.83], [2821, 3, 13, 0.91], [9491, 21, 16, 0.87], [8599, 1, 7, 1.48], [3980, 4, 7, 2.76], [11811, 1, 7, 1.82], [11771, 1, 7, 4.31], [229, 1, 7, 2.27], [8898, 3, 7, 5.0], [8944, 3, 7, 0.71], [3495, 3, 21, 2.56], [1339, 3, 17, 0.66], [1049, 2, 7, 0.73], [9358, 1, 7, 2.79], [409, 1, 7, 2.04], [955, 2, 7, 1.0], [192, 3, 21, 4.05], [346, 3, 8, 0.83], [2991, 3, 7, 4.73], [19687, 1, 7, 2.28], [12764, 2, 8, 1.69], [13928, 2, 7, 2.59], [7036, 1, 7, 3.69], [9690, 1, 7, 3.09], [22573, 2, 7, 1.54], [10124, 1, 7, 4.2], [6575, 3, 7, 3.12], [5584, 3, 7, 5.0], [3334, 5, 7, 1.41], [8897, 3, 7, 5.0], [10147, 1, 7, 0.69], [1277, 1, 7, 0.92], [1701, 2, 7, 1.06], [11886, 2, 7, 1.44], [20927, 1, 7, 1.35], [1523, 1, 7, 1.29], [11678, 1, 7, 1.98], [4001, 3, 14, 1.78], [13260, 29, 7, 2.46], [23275, 2, 7, 1.56], [10516, 3, 8, 3.0], [11677, 1, 7, 2.4], [9065, 2, 7, 1.62], [973, 3, 8, 1.92], [45, 2, 7, 1.2], [3984, 3, 8, 1.07], [346, 1, 7, 0.94], [3979, 3, 8, 1.56], [21269, 3, 7, 2.2], [23031, 3, 7, 3.25], [19924, 2, 7, 1.41], [9373, 5, 7, 2.33], [10181, 26, 8, 0.81], [958, 2, 7, 0.69], [11690, 2, 7, 1.0], [5976, 1, 7, 2.54], [9069, 1, 7, 1.23], [23032, 3, 7, 2.86], [7005, 1, 7, 1.56], [1339, 1, 7, 0.83], [11490, 1, 101, 1.74], [1309, 1, 47, 4.07], [214, 3, 337, 4.39], [5813, 3, 532, 5.42], [10398, 2, 135, 2.25], [5811, 3, 460, 5.34], [11767, 1, 151, 1.76], [2821, 3, 1232, 1.82], [9491, 21, 1971, 1.82], [8599, 1, 133, 2.4], [3980, 4, 437, 4.52], [11811, 1, 417, 2.74], [11771, 1, 192, 5.24], [229, 1, 75, 3.2], [8898, 3, 257, 6.0], [8944, 3, 206, 1.64], [3495, 3, 888, 3.48], [1339, 3, 1618, 1.61], [1049, 2, 44, 1.45], [9358, 1, 52, 3.72], [409, 1, 14, 2.58], [955, 2, 100, 1.93], [346, 3, 573, 1.76], [2991, 3, 146, 6.0], [19687, 1, 28, 3.21], [12764, 2, 682, 2.62], [13928, 2, 21, 3.52], [7036, 1, 118, 4.62], [9690, 1, 69, 4.01], [22573, 2, 65, 2.47], [10124, 1, 92, 5.13], [6575, 3, 231, 4.05], [5584, 3, 210, 6.0], [3334, 5, 170, 2.33], [8897, 3, 257, 6.0], [10147, 1, 62, 1.62], [1277, 1, 180, 1.84], [1701, 2, 156, 1.99], [11886, 2, 177, 2.37], [20927, 1, 73, 2.28], [1523, 1, 44, 2.22], [11678, 1, 409, 2.9], [4001, 3, 742, 2.71], [13260, 29, 67, 3.39], [23275, 2, 65, 2.49], [10516, 3, 542, 3.92], [11677, 1, 412, 3.33], [9065, 2, 277, 2.55], [973, 3, 1084, 2.84], [45, 2, 105, 2.12], [3984, 3, 1527, 1.97], [346, 1, 143, 1.87], [3979, 3, 742, 2.49], [21269, 3, 265, 3.13], [23031, 3, 376, 4.18], [19924, 2, 59, 2.34], [9373, 5, 84, 3.26], [10181, 26, 128, 1.74], [958, 2, 99, 1.62], [11690, 2, 277, 1.93], [5976, 1, 143, 3.47], [9069, 1, 112, 2.16], [23032, 3, 475, 3.79], [7005, 1, 73, 2.49], [1339, 1, 67, 1.76]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 28, 4.18], [305, 2, 7, 0.88], [2328, 2, 11, 1.85], [2778, 2, 13, 1.86], [8650, 2, 9, 2.32], [8672, 2, 12, 1.94], [5491, 2, 7, 0.85], [143, 2, 7, 0.93], [6936, 2, 9, 3.12], [145, 2, 7, 0.96], [11837, 2, 7, 0.87], [11681, 2, 13, 2.3], [5493, 2, 9, 1.81], [589, 2, 7, 0.69], [75, 2, 7, 1.79], [146, 2, 7, 1.1], [12721, 2, 11, 1.45], [8673, 2, 11, 2.2], [8853, 2, 7, 2.88], [326, 2, 9, 1.68], [11835, 2, 7, 0.69], [1005, 2, 7, 2.48], [144, 2, 7, 1.34], [990, 2, 7, 1.16], [8915, 2, 11, 2.76], [308, 1, 11, 4.19], [88, 10, 21, 1.78], [434, 2, 7, 1.04], [6158, 2, 12, 1.25], [2424, 29, 7, 0.89], [7704, 2, 7, 3.01], [2423, 29, 7, 2.17], [11836, 2, 9, 1.36], [2424, 80, 7, 2.57], [7705, 2, 9, 4.08], [1413, 15, 7, 0.99], [7706, 2, 9, 3.46], [10574, 3, 10, 3.31], [2054, 3, 9, 2.2], [2423, 80, 7, 2.23], [3, 2, 9, 2.19], [944, 15, 7, 1.02], [412, 1, 7, 2.34], [3478, 2, 9, 2.45], [2859, 15, 7, 2.42], [10149, 3, 21, 1.49], [12720, 2, 7, 1.89], [7004, 1, 9, 2.58], [74, 1, 7, 0.87], [346, 3, 8, 3.06], [11919, 1, 7, 1.48], [6497, 1, 7, 0.85], [1339, 3, 17, 0.66], [346, 1, 7, 2.81], [10993, 2, 7, 1.25], [13928, 1, 7, 2.49], [418, 2, 7, 0.94], [411, 2, 7, 0.74], [13260, 29, 7, 2.5], [13034, 3, 11, 2.28], [11089, 1, 7, 1.56], [7036, 1, 7, 3.14], [6952, 1, 7, 3.06], [13028, 3, 7, 1.96], [14037, 3, 7, 1.91], [1050, 2, 7, 0.66], [8274, 3, 9, 1.44], [7707, 2, 7, 1.93], [2991, 3, 7, 4.18], [1339, 1, 7, 0.83], [22317, 3, 18, 1.09], [9784, 1, 7, 1.37], [6494, 1, 7, 0.92], [7708, 2, 7, 2.89], [21793, 1, 8, 4.0], [6630, 3, 7, 4.62], [8943, 3, 7, 0.71], [1243, 2, 7, 2.08], [1490, 1, 7, 3.91], [3495, 3, 21, 2.56], [5208, 3, 11, 1.15], [2912, 1, 7, 1.64], [563, 2, 7, 1.19], [11491, 2, 7, 1.42], [11490, 1, 7, 1.29], [229, 1, 7, 2.96], [8944, 3, 7, 0.71], [5940, 3, 9, 0.75], [192, 3, 21, 4.51], [1049, 2, 7, 0.69], [6627, 3, 7, 0.85], [12229, 2, 7, 0.87], [11581, 29, 7, 1.89], [13033, 3, 7, 1.72], [2331, 1, 7, 1.75], [23275, 2, 7, 1.56], [201, 3, 7, 1.16], [5165, 1, 7, 1.41], [247, 1, 7, 2.39], [1274, 1, 7, 1.58], [214, 3, 15, 3.59], [7886, 4, 9, 0.87], [2805, 137, 10, 1.17], [21798, 1, 7, 1.13], [335, 3, 17, 3.87], [20555, 2, 7, 2.66], [8635, 3, 7, 1.12], [114, 3, 7, 2.85], [8898, 3, 7, 2.76], [6496, 1, 7, 2.5], [942, 3, 9, 2.01], [6629, 3, 7, 0.9], [1703, 2, 7, 1.02], [11770, 1, 7, 2.54], [5812, 3, 7, 2.49], [10406, 10, 12, 3.4], [202, 2, 7, 1.19], [83, 2, 7, 0.96], [9760, 29, 7, 3.29], [21269, 3, 7, 2.34], [332, 2, 7, 1.19], [215, 4, 7, 5.0], [186, 3, 15, 2.31], [9372, 1, 7, 4.12], [9827, 3, 7, 0.75], [4940, 1, 7, 0.67], [2821, 3, 13, 0.91], [10527, 3, 13, 3.97], [5811, 3, 8, 2.39], [1886, 2, 7, 0.85], [11767, 1, 7, 0.83], [11489, 1, 7, 1.29], [12373, 1, 11, 3.44], [21781, 2, 7, 0.9], [12870, 1, 7, 4.22], [22317, 3, 249, 3.38], [9784, 1, 67, 2.3], [6494, 1, 47, 1.85], [7708, 2, 161, 4.65], [21793, 1, 185, 6.0], [6630, 3, 72, 6.0], [8943, 3, 305, 1.61], [1243, 2, 77, 3.86], [1490, 1, 45, 4.84], [3495, 3, 888, 3.48], [5208, 3, 521, 2.08], [2912, 1, 44, 2.57], [563, 2, 68, 2.12], [11491, 2, 130, 2.35], [11490, 1, 100, 2.22], [229, 1, 75, 3.89], [8944, 3, 206, 1.64], [5940, 3, 201, 2.19], [192, 3, 1071, 6.0], [1049, 2, 59, 1.5], [6627, 3, 72, 2.88], [12229, 2, 138, 2.9], [11581, 29, 55, 2.82], [13033, 3, 542, 2.64], [2331, 1, 108, 2.68], [23275, 2, 65, 2.49], [201, 3, 279, 2.09], [5165, 1, 44, 2.34], [247, 1, 80, 3.32], [1274, 1, 75, 2.51], [214, 3, 337, 4.39], [7886, 4, 132, 1.8], [2805, 137, 171, 2.1], [21798, 1, 128, 2.06], [335, 3, 1178, 4.78], [20555, 2, 52, 3.59], [114, 3, 189, 4.14], [8898, 3, 254, 4.54], [6496, 1, 36, 4.1], [942, 3, 267, 4.29], [6629, 3, 73, 1.83], [1703, 2, 153, 1.95], [11770, 1, 193, 4.09], [5812, 3, 530, 4.52], [10406, 10, 1618, 4.36], [202, 2, 68, 2.12], [83, 2, 49, 1.89], [9760, 29, 19, 4.09], [21269, 3, 265, 4.12], [332, 2, 68, 2.12], [215, 4, 34, 5.95], [186, 3, 511, 4.18], [9372, 1, 211, 5.04], [9827, 3, 80, 1.68], [4940, 1, 112, 1.6], [2821, 3, 1232, 1.82], [10527, 3, 803, 4.89], [5811, 3, 539, 3.32], [1886, 2, 145, 1.78], [11767, 1, 151, 1.76], [11489, 1, 100, 2.22], [12373, 1, 493, 4.36], [21781, 2, 96, 1.83], [12870, 1, 125, 5.15]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 11, 3.36], [141, 2, 9, 1.09], [589, 2, 10, 0.75], [2778, 2, 11, 1.33], [6936, 2, 13, 3.9], [11681, 2, 30, 4.17], [2327, 2, 9, 1.37], [362, 2, 11, 1.69], [8648, 2, 9, 3.8], [8650, 2, 11, 3.82], [305, 2, 11, 3.03], [326, 2, 9, 2.62], [2328, 2, 7, 1.85], [2775, 2, 9, 1.33], [8853, 2, 14, 4.03], [361, 2, 7, 1.36], [143, 2, 7, 1.52], [593, 2, 9, 1.21], [140, 2, 7, 1.19], [3840, 1, 7, 0.96], [523, 2, 7, 1.49], [21793, 1, 7, 3.22], [151, 1, 7, 0.96], [412, 1, 7, 1.19], [7036, 1, 7, 1.63], [990, 2, 9, 1.69], [21798, 1, 7, 0.96], [5165, 1, 7, 1.87], [145, 2, 7, 2.17], [12349, 1, 7, 4.19], [201, 3, 13, 3.61], [6952, 1, 9, 3.19], [2050, 3, 9, 3.0], [6097, 80, 7, 5.0], [2055, 3, 9, 2.57], [345, 3, 9, 1.93], [10993, 2, 7, 1.41], [144, 2, 7, 1.17], [7084, 3, 7, 3.68], [2057, 3, 9, 2.57], [3891, 1, 7, 1.46], [11770, 1, 7, 0.85], [998, 2, 11, 1.56], [2912, 1, 7, 1.75], [5165, 2, 12, 1.0], [3893, 1, 7, 1.42], [9372, 1, 7, 3.52], [12870, 1, 7, 2.0], [12343, 1, 7, 4.19], [1886, 2, 7, 0.96], [5208, 3, 8, 0.62], [7885, 4, 7, 1.42], [12351, 1, 7, 1.57], [6097, 29, 9, 5.0], [6098, 80, 7, 3.16], [6158, 2, 9, 2.33], [2424, 80, 7, 3.16], [3334, 5, 7, 2.3], [11089, 1, 9, 1.67], [10149, 3, 24, 1.49], [12345, 1, 7, 4.19], [12344, 1, 7, 1.03], [1492, 1, 7, 1.08], [1519, 3, 20, 0.67], [4032, 29, 7, 1.06], [3889, 1, 7, 1.64], [2912, 2, 8, 1.56], [12304, 1, 7, 2.88], [13028, 3, 7, 4.17], [3576, 25, 9, 2.9], [972, 3, 7, 1.44], [411, 2, 7, 1.25], [13034, 3, 7, 4.12], [2331, 1, 7, 3.07], [229, 1, 7, 4.37], [11583, 29, 7, 0.89], [11426, 25, 7, 0.81], [11490, 1, 7, 1.25], [5151, 2, 7, 0.87], [3, 2, 9, 1.41], [5076, 1, 7, 1.06], [12764, 2, 9, 1.76], [13893, 2, 7, 3.82], [2805, 137, 7, 2.3], [3478, 2, 7, 1.67], [1703, 2, 7, 1.39], [2160, 68, 7, 2.25], [3575, 25, 7, 1.49], [13023, 3, 8, 2.24], [5812, 3, 8, 4.08], [13280, 1, 7, 2.1], [4253, 1, 7, 2.02], [2438, 2, 8, 2.54], [11404, 2, 7, 0.83], [11814, 1, 7, 0.92], [3577, 25, 7, 1.0], [9289, 29, 7, 1.55], [75, 2, 7, 0.71], [11813, 1, 7, 2.65], [9971, 2, 7, 3.5], [957, 2, 7, 2.0], [9967, 2, 7, 1.82], [11150, 2, 8, 0.69], [9069, 1, 7, 1.21], [22317, 3, 7, 0.85], [8283, 2, 8, 2.25], [1413, 15, 7, 1.31], [2878, 1, 7, 1.46], [5584, 3, 7, 3.36], [4586, 10, 15, 1.4], [9964, 2, 7, 4.37], [10407, 10, 12, 0.87], [9491, 21, 15, 2.64], [9965, 2, 7, 3.5], [114, 3, 7, 2.46], [10609, 1, 7, 2.27], [289, 3, 7, 1.63], [13249, 29, 7, 1.79], [4076, 3, 7, 3.06], [21697, 3, 7, 0.87], [14041, 3, 7, 2.5], [8926, 1, 7, 3.87], [12647, 1, 7, 1.12], [192, 3, 13, 3.54], [24257, 1, 7, 2.78], [11739, 2, 7, 0.83], [1277, 1, 7, 0.83], [336, 15, 7, 0.77], [11687, 2, 7, 0.73], [3495, 3, 16, 2.43], [1163, 3, 7, 2.33], [7324, 1, 7, 1.98], [2528, 29, 7, 2.63], [11425, 25, 7, 0.81], [1801, 1, 7, 2.7], [3576, 25, 47, 3.86], [972, 3, 557, 2.29], [411, 2, 102, 2.1], [13034, 3, 551, 4.96], [2331, 1, 109, 3.92], [229, 1, 76, 5.22], [11583, 29, 53, 1.74], [11426, 25, 111, 1.66], [11490, 1, 102, 2.1], [5151, 2, 23, 1.72], [3, 2, 95, 3.25], [5076, 1, 121, 1.91], [12764, 2, 690, 2.62], [13893, 2, 249, 4.67], [2805, 137, 168, 3.15], [3478, 2, 59, 2.86], [1703, 2, 153, 2.25], [2160, 68, 123, 3.1], [3575, 25, 79, 3.16], [13023, 3, 460, 3.92], [5812, 3, 455, 5.52], [13280, 1, 298, 2.95], [4253, 1, 158, 2.87], [2438, 2, 581, 3.39], [11404, 2, 81, 2.5], [11814, 1, 209, 1.77], [3577, 25, 83, 1.85], [9289, 29, 59, 2.4], [75, 2, 137, 1.56], [11813, 1, 291, 3.5], [9971, 2, 249, 4.35], [957, 2, 83, 3.42], [9967, 2, 249, 2.67], [11150, 2, 329, 1.54], [9069, 1, 115, 2.06], [22317, 3, 300, 1.7], [8283, 2, 437, 3.09], [1413, 15, 92, 2.16], [2878, 1, 63, 2.52], [5584, 3, 226, 4.21], [4586, 10, 1138, 3.05], [9964, 2, 249, 5.23], [10407, 10, 1086, 1.7], [9491, 21, 1959, 3.5], [9965, 2, 249, 4.35], [10609, 1, 264, 3.11], [289, 3, 538, 2.47], [13249, 29, 60, 2.64], [4076, 3, 186, 3.91], [21697, 3, 170, 1.72], [14041, 3, 613, 3.35], [8926, 1, 57, 4.72], [12647, 1, 205, 1.98], [192, 3, 1261, 4.37], [24257, 1, 49, 3.43], [11739, 2, 54, 1.68], [1277, 1, 184, 1.68], [336, 15, 39, 1.42], [11687, 2, 284, 1.58], [3495, 3, 899, 3.28], [7324, 1, 57, 2.83], [2528, 29, 88, 3.48], [11425, 25, 111, 1.66], [1801, 1, 87, 3.55]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 15, 2.66], [305, 2, 7, 1.49], [6935, 2, 19, 3.76], [2049, 3, 16, 0.78], [141, 2, 7, 0.75], [205, 2, 7, 0.96], [326, 2, 8, 1.03], [144, 2, 7, 0.94], [589, 2, 12, 0.67], [362, 2, 7, 2.54], [151, 1, 7, 0.89], [1776, 1, 7, 2.85], [146, 2, 7, 1.37], [143, 2, 7, 1.12], [206, 2, 7, 0.69], [1777, 1, 7, 2.22], [2328, 2, 7, 1.01], [8648, 2, 9, 2.52], [20252, 2, 7, 0.85], [6936, 2, 10, 2.57], [5151, 2, 7, 2.5], [8650, 2, 7, 3.41], [1007, 2, 10, 0.79], [2778, 2, 9, 1.06], [8677, 3, 8, 3.19], [76, 2, 11, 3.36], [10, 2, 11, 2.3], [8649, 2, 7, 3.11], [10149, 3, 25, 3.26], [2054, 3, 9, 2.1], [412, 1, 7, 1.75], [13028, 3, 7, 1.29], [361, 2, 7, 1.25], [413, 1, 7, 1.89], [7004, 1, 7, 0.77], [11404, 2, 7, 0.92], [7084, 3, 7, 2.91], [411, 2, 7, 1.17], [410, 1, 7, 1.42], [3478, 2, 7, 2.36], [308, 1, 7, 2.44], [167, 3, 7, 3.2], [5081, 2, 15, 1.3], [7005, 1, 9, 0.99], [3495, 3, 26, 2.98], [1124, 2, 10, 0.99], [432, 3, 7, 2.04], [9827, 3, 7, 1.38], [45, 2, 7, 3.67], [94, 4, 7, 3.04], [7036, 1, 7, 2.68], [3893, 1, 7, 1.02], [3889, 1, 7, 1.02], [168, 3, 9, 1.09], [10574, 3, 9, 2.32], [3891, 1, 7, 1.02], [2049, 1, 7, 3.02], [2336, 3, 8, 1.49], [12870, 1, 7, 4.97], [335, 3, 22, 3.78], [1504, 2, 16, 1.33], [6097, 29, 9, 4.96], [6097, 80, 7, 4.94], [998, 2, 9, 3.14], [214, 3, 15, 0.98], [11737, 2, 7, 1.66], [95, 3, 21, 0.92], [346, 1, 7, 1.33], [20927, 1, 7, 1.75], [6098, 29, 7, 3.7], [1490, 1, 7, 1.12], [79, 1, 7, 0.73], [5208, 3, 13, 1.54], [9069, 1, 7, 2.35], [22316, 3, 9, 0.97], [6098, 80, 7, 3.68], [8898, 3, 7, 4.23], [1070, 7, 13, 0.73], [14017, 3, 7, 1.29], [997, 2, 9, 2.57], [20498, 1, 7, 2.44], [346, 3, 8, 0.91], [13034, 3, 10, 2.73], [83, 2, 7, 0.85], [22554, 10, 15, 0.87], [1622, 1, 12, 0.53], [13260, 29, 7, 2.4], [7567, 3, 7, 3.69], [11116, 1, 7, 0.81], [8945, 3, 8, 1.84], [5811, 3, 6, 2.36], [22317, 3, 10, 1.35], [5946, 1, 7, 1.02], [5813, 3, 7, 1.98], [20498, 3, 10, 2.16], [5513, 2, 7, 1.0], [5209, 3, 7, 1.0], [12924, 1, 7, 0.86], [5086, 1, 11, 1.39], [995, 2, 9, 4.49], [996, 2, 9, 4.17], [33, 1, 7, 1.99], [974, 3, 7, 1.69], [972, 3, 8, 0.85], [229, 1, 7, 3.67], [1413, 15, 7, 0.87], [9691, 1, 7, 3.2], [35, 1, 7, 2.27], [8557, 3, 7, 1.53], [3049, 3, 7, 4.11], [20486, 3, 10, 3.51], [5584, 3, 7, 3.61], [8943, 3, 7, 0.71], [1703, 2, 7, 2.72], [13023, 3, 8, 2.62], [4076, 3, 7, 5.0], [2424, 80, 7, 4.51], [39, 1, 7, 1.54], [952, 4, 7, 4.29], [3900, 3, 9, 2.43], [8104, 1, 7, 0.75], [9081, 3, 15, 3.06], [11510, 3, 10, 1.73], [215, 4, 7, 5.0], [20486, 1, 7, 2.87], [34, 1, 7, 1.23], [972, 1, 7, 1.41], [114, 3, 7, 0.92], [6497, 1, 7, 2.18], [2854, 21, 13, 0.84], [3047, 3, 7, 1.93], [38, 1, 7, 1.99], [1414, 15, 7, 0.81], [20969, 3, 7, 2.17], [23611, 3, 7, 0.81], [8635, 3, 7, 1.1], [1339, 3, 20, 0.72], [95, 3, 796, 2.85], [346, 1, 128, 2.48], [1490, 1, 43, 2.28], [79, 1, 34, 1.75], [5208, 3, 293, 2.08], [22316, 3, 263, 2.34], [8898, 3, 199, 5.88], [1070, 7, 421, 2.65], [14017, 3, 139, 3.14], [997, 2, 196, 3.94], [20498, 1, 70, 3.85], [346, 3, 513, 2.32], [13034, 3, 414, 4.4], [83, 2, 47, 1.5], [22554, 10, 327, 1.52], [1622, 1, 94, 1.18], [13260, 29, 63, 3.05], [7567, 3, 60, 4.54], [11116, 1, 70, 1.46], [8945, 3, 490, 2.82], [5811, 3, 414, 4.08], [22317, 3, 224, 2.77], [5946, 1, 108, 1.67], [5813, 3, 414, 3.88], [20498, 3, 414, 3.8], [5513, 2, 69, 1.65], [5209, 3, 489, 1.65], [12924, 1, 38, 2.94], [5086, 1, 130, 4.04], [995, 2, 196, 6.0], [996, 2, 196, 5.82], [33, 1, 93, 2.83], [974, 3, 128, 2.34], [972, 3, 497, 2.03], [1413, 15, 86, 1.52], [9691, 1, 54, 4.56], [35, 1, 93, 3.43], [8557, 3, 144, 3.43], [3049, 3, 98, 5.52], [20486, 3, 419, 5.18], [5584, 3, 178, 5.02], [8943, 3, 334, 1.35], [1703, 2, 135, 4.12], [13023, 3, 414, 4.36], [4076, 3, 140, 6.0], [2424, 80, 152, 5.66], [39, 1, 93, 2.47], [952, 4, 62, 4.94], [8104, 1, 180, 1.4], [9081, 3, 381, 4.72], [11510, 3, 483, 3.4], [20486, 1, 71, 4.77], [34, 1, 97, 1.88], [972, 1, 83, 2.33], [114, 3, 203, 2.32], [6497, 1, 31, 3.34], [2854, 21, 885, 2.25], [3047, 3, 224, 2.58], [38, 1, 97, 2.64], [1414, 15, 83, 2.22], [20969, 3, 511, 2.81], [23611, 3, 300, 1.46], [1339, 3, 1518, 1.37]]</t>
   </si>
 </sst>
 </file>

--- a/QD_upload.xlsx
+++ b/QD_upload.xlsx
@@ -70,82 +70,82 @@
     <t>SakkarahQD</t>
   </si>
   <si>
-    <t>15/12/2025 12:25</t>
-  </si>
-  <si>
-    <t>21/12/2025 23:59</t>
-  </si>
-  <si>
-    <t>[[305, 2, 4, 0.25], [326, 2, 4, 0.54], [589, 2, 6, 0.2], [143, 2, 4, 0.58], [205, 2, 4, 0.2], [2049, 3, 9, 1.4], [130, 1, 4, 0.6], [6935, 2, 8, 1.27], [75, 2, 5, 0.87], [144, 2, 4, 0.74], [12721, 2, 6, 0.72], [145, 2, 4, 0.52], [8915, 2, 8, 0.2], [7885, 4, 4, 0.4], [146, 2, 4, 0.27], [1776, 1, 4, 0.61], [2778, 2, 5, 0.2], [1777, 1, 4, 0.74], [151, 1, 4, 0.2], [206, 2, 4, 0.2], [20252, 2, 4, 0.44], [8648, 2, 4, 1.27], [6936, 2, 5, 1.17], [990, 2, 4, 0.95], [2328, 2, 4, 0.2], [7886, 4, 5, 0.45], [8650, 2, 4, 1.65], [141, 2, 4, 0.28], [74, 1, 4, 1.53], [83, 2, 4, 0.44], [2054, 3, 5, 0.54], [2057, 3, 6, 0.47], [7004, 1, 4, 0.2], [1492, 1, 5, 0.97], [2055, 3, 5, 0.42], [8649, 2, 4, 1.65], [345, 3, 4, 0.32], [21798, 1, 4, 0.36], [7005, 1, 4, 0.2], [7084, 3, 4, 2.28], [3889, 1, 4, 0.2], [10825, 21, 10, 1.04], [7887, 4, 4, 0.35], [33, 1, 4, 0.83], [61, 3, 4, 0.71], [21793, 1, 4, 1.14], [10149, 3, 15, 0.99], [94, 4, 4, 0.2], [432, 3, 6, 0.62], [7036, 1, 4, 0.43], [5081, 2, 5, 0.69], [12870, 1, 4, 2.33], [3478, 2, 4, 0.78], [167, 3, 5, 1.4], [308, 1, 4, 0.49], [11681, 2, 5, 1.79], [411, 2, 4, 0.2], [10, 2, 4, 0.68], [13028, 3, 4, 0.62], [9827, 3, 4, 0.2], [1504, 2, 4, 0.52], [201, 3, 5, 0.32], [3891, 1, 4, 0.2], [84, 2, 4, 1.54], [8677, 3, 6, 0.65], [168, 3, 4, 1.23], [35, 1, 4, 0.83], [1124, 2, 6, 0.2], [3893, 1, 4, 0.2], [79, 1, 4, 0.2], [5812, 3, 6, 0.81], [2336, 3, 5, 0.99], [13280, 1, 4, 0.54], [23, 1, 4, 0.67], [9760, 29, 4, 0.49], [1490, 1, 4, 0.2], [1243, 2, 4, 0.66], [11737, 2, 4, 0.2], [6158, 2, 6, 0.51], [5208, 3, 5, 0.39], [335, 3, 11, 0.22], [412, 1, 4, 1.14], [361, 2, 4, 0.53], [20927, 1, 4, 0.49], [45, 2, 4, 0.64], [214, 3, 9, 0.38], [25, 1, 4, 0.76], [1767, 25, 4, 0.59], [95, 3, 14, 0.31], [9069, 1, 4, 0.42], [10574, 3, 5, 0.58], [413, 1, 5, 1.07], [21269, 3, 4, 1.6], [3495, 3, 15, 1.31], [346, 3, 4, 0.52], [34, 1, 4, 0.63], [997, 2, 4, 0.77], [8898, 3, 5, 0.75], [11116, 1, 4, 0.56], [1766, 25, 4, 0.56], [5946, 1, 4, 1.03], [417, 2, 4, 0.53], [9691, 1, 4, 1.52], [1070, 7, 9, 0.46], [1413, 15, 4, 0.53], [14017, 3, 5, 1.04], [38, 1, 4, 0.63], [20498, 1, 4, 0.23], [9372, 1, 5, 1.74], [11954, 1, 4, 0.2], [974, 3, 5, 0.88], [5209, 3, 4, 0.37], [22317, 3, 5, 0.51], [7567, 3, 4, 0.41], [14037, 3, 4, 0.2], [972, 3, 5, 0.91], [5584, 3, 4, 1.19], [20498, 3, 6, 0.82], [9828, 3, 4, 0.21], [8945, 3, 5, 1.51], [5813, 3, 4, 1.51], [82, 2, 4, 0.46], [39, 1, 4, 0.59], [3048, 3, 4, 1.24], [1080, 3, 5, 0.55], [13034, 3, 5, 1.09], [24, 1, 4, 1.04], [955, 2, 4, 0.22], [1414, 15, 4, 0.2], [336, 15, 4, 0.2], [1767, 2, 4, 0.59], [10780, 10, 4, 0.98], [13260, 29, 4, 0.73], [4203, 1, 5, 0.3], [305, 2, 119, 3.05], [326, 2, 79, 3.44], [589, 2, 157, 1.41], [143, 2, 127, 3.11], [205, 2, 94, 2.56], [130, 1, 60, 2.55], [6935, 2, 243, 5.06], [75, 2, 127, 3.66], [144, 2, 127, 2.96], [12721, 2, 246, 3.75], [145, 2, 130, 3.01], [8915, 2, 197, 1.25], [146, 2, 153, 1.74], [1776, 1, 93, 3.19], [2778, 2, 134, 3.12], [1777, 1, 84, 3.41], [151, 1, 67, 1.45], [206, 2, 111, 1.67], [20252, 2, 95, 1.59], [8648, 2, 194, 5.59], [6936, 2, 243, 4.53], [990, 2, 44, 2.54], [2328, 2, 109, 3.35], [7886, 4, 146, 1.62], [8650, 2, 194, 6.0], [141, 2, 119, 3.67], [74, 1, 173, 5.59], [83, 2, 37, 1.52], [2054, 3, 368, 2.6], [2057, 3, 411, 2.93], [7004, 1, 81, 1.45], [1492, 1, 29, 3.24], [2055, 3, 411, 2.85], [8649, 2, 194, 6.0], [345, 3, 260, 3.1], [21798, 1, 141, 1.7], [7005, 1, 81, 1.47], [3889, 1, 107, 2.86], [10825, 21, 547, 3.52], [7887, 4, 142, 1.41], [33, 1, 90, 3.5], [61, 3, 210, 2.11], [21793, 1, 230, 4.76], [10149, 3, 760, 3.73], [94, 4, 106, 4.16], [432, 3, 259, 3.2], [7036, 1, 110, 3.8], [5081, 2, 164, 3.32], [12870, 1, 119, 6.0], [167, 3, 196, 3.83], [308, 1, 170, 3.3], [11681, 2, 266, 5.07], [411, 2, 94, 2.74], [10, 2, 107, 2.06], [13028, 3, 148, 3.95], [9827, 3, 75, 2.94], [1504, 2, 208, 3.46], [201, 3, 260, 3.1], [3891, 1, 107, 3.74], [84, 2, 69, 3.78], [8677, 3, 254, 3.32], [168, 3, 137, 3.83], [35, 1, 86, 3.36], [1124, 2, 160, 3.48], [3893, 1, 107, 3.7], [79, 1, 40, 2.72]]</t>
-  </si>
-  <si>
-    <t>[[2327, 2, 4, 0.27], [305, 2, 4, 0.45], [6935, 2, 6, 1.69], [2778, 2, 4, 0.2], [8915, 2, 5, 0.21], [144, 2, 4, 0.54], [143, 2, 4, 0.44], [2328, 2, 4, 0.26], [6936, 2, 5, 1.66], [8648, 2, 4, 1.15], [205, 2, 4, 0.37], [593, 2, 6, 0.4], [8650, 2, 5, 1.53], [145, 2, 4, 0.5], [146, 2, 5, 0.57], [326, 2, 4, 0.47], [5493, 2, 4, 0.2], [7036, 1, 4, 1.2], [2049, 3, 8, 0.2], [88, 10, 11, 0.77], [141, 2, 5, 0.39], [7004, 1, 4, 0.99], [1446, 2, 4, 0.78], [206, 2, 4, 0.2], [1124, 2, 4, 0.95], [9760, 29, 4, 0.2], [362, 2, 4, 0.52], [2055, 3, 4, 0.55], [2912, 1, 4, 0.91], [10993, 2, 4, 0.35], [12870, 1, 5, 1.43], [3893, 1, 4, 0.2], [5165, 1, 4, 0.86], [9372, 1, 4, 1.33], [7886, 4, 5, 0.44], [2054, 3, 5, 0.2], [3889, 1, 4, 0.2], [2050, 3, 5, 0.55], [1622, 1, 4, 0.2], [3891, 1, 4, 0.2], [21793, 1, 4, 0.61], [7885, 4, 4, 0.49], [7573, 1, 9, 2.21], [10, 2, 5, 0.36], [5208, 3, 5, 0.21], [10149, 3, 17, 1.21], [75, 2, 5, 1.0], [20927, 1, 4, 1.01], [997, 2, 4, 1.01], [3, 2, 5, 0.62], [11234, 2, 5, 0.5], [5165, 2, 5, 0.86], [12721, 2, 5, 1.46], [998, 2, 4, 0.56], [35, 1, 4, 1.54], [1886, 2, 5, 0.2], [972, 3, 5, 0.75], [22247, 2, 4, 1.14], [9491, 21, 15, 0.22], [996, 2, 4, 0.35], [955, 2, 4, 0.52], [33, 1, 4, 1.18], [83, 2, 4, 0.7], [229, 1, 4, 1.3], [7887, 4, 4, 0.97], [6158, 2, 4, 0.44], [2912, 2, 7, 0.99], [76, 2, 5, 0.85], [413, 1, 4, 1.63], [2424, 80, 4, 0.86], [34, 1, 4, 1.32], [13028, 3, 4, 1.36], [38, 1, 4, 1.38], [5209, 3, 6, 0.71], [13928, 1, 4, 0.95], [8676, 2, 4, 1.22], [8898, 3, 4, 2.55], [418, 2, 4, 0.65], [12212, 29, 5, 0.22], [3495, 3, 10, 1.25], [11952, 1, 4, 0.85], [39, 1, 4, 1.35], [9690, 1, 4, 0.22], [1414, 15, 4, 0.45], [5946, 1, 4, 0.53], [11490, 1, 4, 0.71], [2424, 29, 4, 0.37], [9691, 1, 4, 0.97], [411, 2, 4, 0.85], [415, 1, 4, 0.55], [1703, 2, 4, 1.08], [10407, 10, 6, 1.43], [7567, 3, 4, 1.33], [23961, 3, 4, 2.13], [11953, 1, 4, 0.45], [11772, 1, 4, 1.43], [13023, 3, 5, 0.55], [22316, 3, 4, 0.6], [12764, 2, 5, 0.73], [214, 3, 9, 0.42], [13928, 2, 4, 0.55], [74, 1, 4, 2.78], [21269, 3, 5, 0.99], [10410, 10, 10, 1.66], [13893, 2, 4, 0.91], [1163, 3, 4, 0.46], [972, 1, 4, 0.68], [2331, 1, 4, 0.69], [410, 1, 4, 0.55], [1274, 1, 4, 0.55], [5164, 1, 4, 0.9], [1523, 1, 4, 0.4], [24257, 1, 4, 0.52], [10408, 10, 6, 1.84], [1492, 1, 4, 0.2], [3430, 15, 4, 1.2], [6097, 80, 4, 1.01], [2438, 2, 6, 1.63], [13034, 3, 5, 1.2], [6097, 29, 4, 0.44], [3047, 3, 4, 1.39], [1243, 2, 5, 1.13], [10780, 10, 4, 1.62], [71, 15, 4, 0.39], [6805, 1, 4, 0.51], [1080, 3, 4, 1.41], [2436, 4, 5, 0.31], [1277, 1, 4, 0.36], [7704, 2, 4, 1.64], [7705, 2, 4, 1.64], [3429, 15, 4, 0.37], [6497, 1, 4, 1.11], [8659, 1, 4, 0.82], [19931, 1, 4, 1.26], [20486, 3, 5, 0.5], [2327, 2, 125, 3.09], [305, 2, 110, 3.21], [6935, 2, 209, 6.0], [2778, 2, 118, 3.31], [8915, 2, 170, 2.69], [144, 2, 113, 3.38], [143, 2, 111, 3.2], [2328, 2, 113, 3.78], [6936, 2, 209, 5.65], [8648, 2, 168, 5.46], [205, 2, 81, 2.35], [593, 2, 171, 3.32], [8650, 2, 168, 5.19], [145, 2, 113, 3.31], [146, 2, 113, 3.43], [326, 2, 81, 3.07], [5493, 2, 113, 1.57], [7036, 1, 97, 5.41], [2049, 3, 429, 3.11], [141, 2, 117, 3.11], [1446, 2, 140, 2.34], [206, 2, 33, 2.33], [1124, 2, 172, 2.73], [9760, 29, 66, 3.12], [362, 2, 107, 3.34], [2055, 3, 375, 2.33], [2912, 1, 44, 2.59], [10993, 2, 49, 1.84], [12870, 1, 103, 5.58], [3893, 1, 94, 3.1], [5165, 1, 44, 2.5], [9372, 1, 211, 4.09], [7886, 4, 133, 1.64], [2054, 3, 166, 3.07], [3889, 1, 94, 3.61], [2050, 3, 375, 2.44], [1622, 1, 100, 1.42], [3891, 1, 94, 3.15], [21793, 1, 222, 2.06], [7885, 4, 32, 1.42], [7573, 1, 276, 5.69], [10, 2, 93, 2.77], [5208, 3, 522, 1.87], [10149, 3, 662, 4.5], [75, 2, 108, 4.27], [997, 2, 179, 4.71], [3, 2, 91, 3.71], [11234, 2, 170, 2.39], [5165, 2, 354, 2.35], [12721, 2, 210, 4.69], [998, 2, 179, 3.89], [35, 1, 39, 3.84], [1886, 2, 117, 3.42], [972, 3, 444, 3.65], [22247, 2, 261, 3.11], [9491, 21, 1587, 3.27], [996, 2, 174, 5.39], [955, 2, 100, 1.84], [33, 1, 83, 3.95], [229, 1, 63, 3.9], [6158, 2, 241, 2.39], [76, 2, 82, 3.48], [413, 1, 20, 3.93], [2424, 80, 157, 3.61], [34, 1, 83, 3.87]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 5, 1.34], [11685, 2, 4, 1.87], [326, 2, 5, 0.7], [8648, 2, 4, 0.71], [589, 2, 5, 0.2], [2327, 2, 5, 0.29], [593, 2, 5, 0.52], [11681, 2, 5, 1.37], [305, 2, 4, 0.51], [143, 2, 4, 0.76], [141, 2, 4, 0.53], [8650, 2, 4, 0.77], [2778, 2, 5, 0.2], [6936, 2, 5, 1.85], [2049, 3, 8, 0.2], [146, 2, 4, 0.82], [88, 10, 12, 0.2], [7004, 1, 4, 0.61], [615, 2, 4, 0.62], [7036, 1, 4, 1.48], [145, 2, 4, 0.73], [362, 2, 4, 0.5], [8853, 2, 5, 1.2], [2055, 3, 6, 1.74], [10993, 2, 4, 0.63], [11737, 2, 5, 0.2], [3840, 1, 4, 0.38], [159, 3, 6, 0.2], [523, 2, 4, 0.53], [12870, 1, 4, 1.17], [2057, 3, 5, 1.78], [3889, 1, 4, 0.6], [10574, 3, 5, 0.53], [13280, 1, 4, 0.75], [7084, 3, 5, 0.28], [20927, 1, 4, 0.61], [2054, 3, 4, 0.78], [997, 2, 5, 0.78], [3, 2, 4, 0.53], [3982, 3, 14, 1.18], [21793, 1, 4, 1.09], [10, 2, 4, 0.39], [3891, 1, 4, 0.53], [61, 3, 4, 1.23], [998, 2, 4, 0.69], [11739, 2, 4, 0.73], [7885, 4, 5, 0.2], [6158, 2, 6, 0.2], [8672, 2, 5, 0.73], [5165, 1, 4, 0.67], [972, 3, 4, 1.77], [5165, 2, 5, 0.66], [346, 3, 4, 0.87], [3980, 4, 4, 1.19], [9372, 1, 4, 1.49], [411, 2, 4, 0.65], [2912, 1, 4, 0.91], [956, 2, 4, 0.39], [10388, 2, 4, 1.33], [214, 3, 9, 0.38], [9491, 21, 12, 0.29], [3981, 3, 13, 1.15], [346, 1, 4, 0.99], [1492, 1, 4, 0.46], [995, 2, 4, 1.16], [7573, 1, 5, 0.93], [33, 1, 4, 2.08], [22316, 3, 4, 0.51], [7886, 4, 4, 0.24], [13928, 1, 4, 0.47], [10386, 2, 4, 0.36], [336, 15, 4, 0.37], [161, 3, 5, 1.51], [35, 1, 4, 1.58], [7567, 3, 4, 0.71], [11770, 1, 5, 0.2], [2912, 2, 5, 2.03], [308, 1, 4, 1.07], [10631, 2, 4, 1.27], [11490, 1, 4, 0.8], [229, 1, 4, 1.25], [11953, 1, 5, 0.22], [83, 2, 4, 0.67], [22317, 3, 6, 0.51], [10780, 10, 4, 1.58], [414, 1, 4, 0.51], [10407, 10, 6, 1.35], [10149, 3, 15, 1.47], [10410, 10, 6, 1.31], [12271, 2, 4, 1.76], [972, 1, 5, 1.76], [6497, 1, 4, 0.47], [1413, 15, 4, 0.28], [23611, 3, 4, 0.2], [11767, 1, 4, 0.43], [345, 3, 4, 0.76], [8104, 1, 4, 0.38], [37, 1, 4, 0.91], [3478, 2, 4, 0.52], [74, 1, 4, 2.85], [39, 1, 4, 0.43], [10387, 2, 4, 0.37], [9971, 2, 4, 1.0], [4076, 3, 4, 1.19], [3048, 3, 4, 0.46], [152, 21, 4, 0.59], [34, 1, 4, 0.68], [24257, 1, 4, 1.38], [2331, 1, 4, 1.35], [82, 2, 4, 0.41], [20498, 3, 5, 0.73], [4001, 3, 8, 1.13], [4253, 1, 4, 0.73], [11510, 3, 5, 0.5], [45, 2, 4, 2.7], [9, 1, 4, 0.36], [416, 1, 4, 0.51], [215, 4, 4, 0.95], [12338, 29, 4, 0.39], [10936, 2, 4, 0.45], [12764, 2, 6, 0.58], [9965, 2, 4, 2.17], [202, 2, 4, 0.38], [1523, 1, 4, 0.64], [1895, 3, 4, 0.74], [105, 3, 4, 0.51], [12858, 1, 5, 0.22], [1080, 3, 4, 0.46], [2805, 137, 8, 0.94], [11489, 1, 4, 0.39], [8635, 3, 4, 1.26], [7705, 2, 4, 1.2], [3047, 3, 4, 0.9], [10093, 3, 9, 0.9], [6935, 2, 188, 5.01], [11685, 2, 221, 5.55], [326, 2, 88, 3.24], [8648, 2, 217, 3.51], [589, 2, 124, 2.8], [2327, 2, 111, 2.93], [593, 2, 187, 2.96], [11681, 2, 221, 5.54], [305, 2, 119, 3.13], [143, 2, 120, 3.63], [141, 2, 125, 3.78], [8650, 2, 217, 3.05], [2778, 2, 126, 3.26], [6936, 2, 188, 6.0], [2049, 3, 445, 3.07], [146, 2, 123, 3.76], [88, 10, 471, 3.03], [7004, 1, 76, 1.97], [615, 2, 89, 3.8], [7036, 1, 104, 4.47], [145, 2, 55, 3.54], [362, 2, 114, 3.11], [8853, 2, 188, 4.57], [2055, 3, 371, 5.61], [10993, 2, 51, 2.01], [11737, 2, 40, 3.02], [3840, 1, 166, 1.53], [159, 3, 583, 2.54], [523, 2, 125, 3.25], [12870, 1, 108, 5.39], [2057, 3, 371, 5.72], [3889, 1, 120, 1.96], [10574, 3, 374, 1.7], [13280, 1, 303, 3.38], [7084, 3, 106, 3.63], [20927, 1, 76, 2.35], [2054, 3, 437, 4.28], [997, 2, 188, 3.19], [3, 2, 118, 1.82], [3982, 3, 642, 4.54], [21793, 1, 233, 2.97], [10, 2, 102, 1.55], [3891, 1, 120, 1.82], [61, 3, 199, 3.17], [998, 2, 188, 3.02], [11739, 2, 46, 2.86], [7885, 4, 135, 1.5], [6158, 2, 213, 3.44], [8672, 2, 232, 4.88], [5165, 1, 46, 2.09], [5165, 2, 367, 1.95], [346, 3, 584, 2.49], [3980, 4, 377, 4.05], [9372, 1, 219, 3.75], [411, 2, 105, 2.05], [2912, 1, 46, 2.55], [956, 2, 103, 1.55], [10388, 2, 169, 3.83], [214, 3, 629, 1.5], [9491, 21, 1669, 2.55], [3981, 3, 1258, 3.84], [346, 1, 146, 2.71], [1492, 1, 36, 1.69], [995, 2, 188, 3.92], [7573, 1, 334, 4.65], [22316, 3, 247, 2.67]]</t>
-  </si>
-  <si>
-    <t>[[2049, 3, 10, 0.24], [326, 2, 5, 0.47], [6935, 2, 9, 0.72], [362, 2, 5, 0.95], [589, 2, 6, 0.2], [141, 2, 5, 0.54], [75, 2, 4, 0.74], [1776, 1, 4, 0.58], [130, 1, 4, 0.5], [8672, 2, 6, 0.72], [20252, 2, 4, 0.44], [7886, 4, 4, 0.41], [2778, 2, 5, 0.2], [305, 2, 4, 0.48], [1777, 1, 4, 0.93], [6936, 2, 6, 1.27], [593, 2, 6, 0.2], [11681, 2, 5, 2.33], [8648, 2, 5, 0.77], [206, 2, 4, 0.2], [151, 1, 4, 0.44], [88, 10, 12, 0.58], [2328, 2, 5, 0.2], [83, 2, 4, 0.5], [8650, 2, 5, 1.15], [5151, 2, 4, 1.15], [2050, 3, 5, 0.66], [412, 1, 4, 0.91], [361, 2, 4, 0.49], [144, 2, 4, 0.75], [2991, 3, 4, 2.17], [21798, 1, 4, 0.36], [57, 1, 5, 0.2], [10149, 3, 15, 1.32], [76, 2, 4, 0.86], [21793, 1, 4, 1.03], [2054, 3, 4, 1.35], [146, 2, 4, 0.56], [3478, 2, 4, 0.45], [45, 2, 4, 1.12], [143, 2, 4, 0.46], [7004, 1, 5, 0.47], [2057, 3, 4, 1.61], [167, 3, 5, 1.09], [168, 3, 6, 0.74], [74, 1, 4, 0.84], [346, 1, 4, 0.2], [84, 2, 4, 1.54], [3495, 3, 15, 0.92], [335, 3, 11, 0.39], [7036, 1, 4, 1.96], [432, 3, 4, 0.39], [5081, 2, 4, 0.2], [214, 3, 9, 0.42], [10, 2, 4, 0.67], [13028, 3, 4, 0.5], [7887, 4, 4, 0.4], [11404, 2, 5, 0.2], [8649, 2, 4, 1.15], [12870, 1, 4, 2.58], [410, 1, 4, 0.2], [79, 1, 4, 0.2], [142, 2, 4, 0.51], [145, 2, 4, 0.43], [5208, 3, 6, 0.19], [3889, 1, 4, 0.27], [3893, 1, 5, 0.2], [1492, 1, 4, 0.2], [5812, 3, 5, 1.22], [1504, 2, 6, 0.2], [94, 4, 4, 0.26], [9827, 3, 4, 0.2], [411, 2, 4, 0.31], [7005, 1, 4, 0.49], [13260, 29, 4, 0.85], [3891, 1, 4, 0.2], [1490, 1, 5, 0.2], [998, 2, 4, 0.69], [10574, 3, 5, 0.43], [21269, 3, 4, 1.45], [7567, 3, 4, 1.37], [9069, 1, 4, 1.62], [5086, 1, 6, 1.11], [11954, 1, 4, 0.48], [2878, 1, 5, 0.54], [1243, 2, 4, 1.13], [997, 2, 4, 1.37], [9691, 1, 4, 1.65], [20927, 1, 4, 0.61], [5209, 3, 5, 0.19], [1703, 2, 4, 1.13], [11914, 1, 5, 0.2], [1124, 2, 5, 0.21], [856, 1, 4, 0.48], [5660, 2, 5, 1.05], [5584, 3, 4, 0.44], [1070, 7, 11, 0.38], [8274, 3, 5, 1.09], [11811, 1, 4, 1.0], [1519, 3, 12, 0.22], [23961, 3, 4, 2.43], [8898, 3, 4, 2.67], [952, 4, 4, 2.64], [1091, 1, 4, 0.2], [22317, 3, 5, 0.51], [9081, 3, 9, 1.03], [24, 1, 5, 0.95], [5513, 2, 4, 0.52], [13034, 3, 6, 1.01], [12661, 1, 4, 2.35], [336, 15, 4, 0.2], [11767, 1, 4, 0.47], [1413, 15, 4, 0.37], [20498, 1, 4, 2.08], [6097, 80, 4, 0.41], [9760, 29, 4, 0.2], [9082, 3, 18, 0.92], [8945, 3, 6, 2.49], [4203, 1, 5, 0.53], [10529, 29, 4, 1.19], [1163, 3, 5, 0.22], [6097, 29, 4, 0.34], [2109, 3, 9, 0.24], [995, 2, 4, 1.23], [82, 2, 4, 0.35], [20498, 3, 5, 2.0], [11769, 1, 4, 0.47], [972, 3, 5, 0.51], [9372, 1, 4, 1.47], [6098, 80, 4, 0.9], [2104, 3, 6, 1.38], [5813, 3, 4, 1.06], [8635, 3, 5, 0.6], [10780, 10, 4, 2.08], [34, 1, 4, 0.47], [2049, 3, 458, 2.3], [326, 2, 65, 2.88], [6935, 2, 236, 4.45], [362, 2, 117, 3.72], [589, 2, 134, 1.15], [141, 2, 111, 2.89], [75, 2, 103, 3.77], [1776, 1, 81, 2.97], [130, 1, 51, 2.31], [8672, 2, 246, 2.81], [20252, 2, 81, 1.5], [7886, 4, 105, 2.04], [2778, 2, 111, 2.96], [305, 2, 104, 2.78], [1777, 1, 90, 3.63], [6936, 2, 201, 4.58], [593, 2, 162, 2.73], [11681, 2, 193, 6.0], [8648, 2, 159, 5.11], [206, 2, 95, 1.61], [151, 1, 53, 2.46], [88, 10, 398, 4.25], [2328, 2, 108, 2.84], [83, 2, 47, 1.61], [8650, 2, 159, 5.15], [5151, 2, 18, 3.14], [2050, 3, 336, 3.11], [412, 1, 60, 3.58], [361, 2, 134, 1.59], [144, 2, 108, 2.84], [2991, 3, 115, 5.54], [21798, 1, 121, 1.6], [57, 1, 54, 2.6], [10149, 3, 676, 4.91], [76, 2, 77, 4.16], [21793, 1, 171, 5.53], [146, 2, 108, 3.51], [3478, 2, 66, 1.52], [45, 2, 77, 4.55], [143, 2, 106, 2.75], [7004, 1, 50, 2.18], [2057, 3, 328, 3.84], [167, 3, 161, 3.91], [168, 3, 289, 3.28], [74, 1, 140, 4.42], [346, 1, 113, 2.71], [84, 2, 59, 3.68], [3495, 3, 679, 3.48], [335, 3, 951, 4.78], [7036, 1, 90, 4.74], [432, 3, 261, 2.26], [5081, 2, 135, 2.9], [214, 3, 565, 1.42], [13028, 3, 105, 2.83], [7887, 4, 122, 1.42], [11404, 2, 66, 2.34], [8649, 2, 159, 4.87], [12870, 1, 98, 6.0], [410, 1, 76, 2.64], [79, 1, 34, 1.75], [142, 2, 134, 1.63], [145, 2, 132, 1.48], [5208, 3, 489, 1.96], [3889, 1, 89, 3.61], [3893, 1, 89, 3.08]]</t>
-  </si>
-  <si>
-    <t>[[589, 2, 6, 0.2], [88, 10, 12, 0.26], [8915, 2, 5, 0.21], [2327, 2, 4, 0.52], [6935, 2, 6, 1.69], [2778, 2, 5, 0.2], [305, 2, 5, 0.45], [2328, 2, 4, 0.51], [615, 2, 4, 0.62], [5493, 2, 4, 0.2], [616, 2, 4, 0.55], [326, 2, 5, 1.22], [6936, 2, 5, 1.66], [8650, 2, 5, 2.03], [1446, 2, 4, 0.2], [7004, 1, 4, 0.99], [143, 2, 4, 1.19], [144, 2, 5, 1.04], [593, 2, 5, 0.4], [10, 2, 5, 0.67], [5491, 2, 4, 0.51], [7036, 1, 4, 1.2], [3893, 1, 4, 0.2], [1124, 2, 4, 0.95], [146, 2, 5, 1.07], [7885, 4, 4, 0.49], [7886, 4, 6, 0.44], [3891, 1, 4, 0.2], [75, 2, 5, 1.24], [362, 2, 4, 0.52], [5208, 3, 5, 0.21], [21793, 1, 4, 0.61], [3889, 1, 5, 0.2], [2054, 3, 4, 0.75], [3980, 4, 6, 1.21], [7084, 3, 4, 1.32], [12870, 1, 4, 1.93], [2050, 3, 5, 0.55], [145, 2, 4, 1.25], [5165, 1, 4, 0.86], [10149, 3, 13, 1.47], [13028, 3, 4, 1.36], [8672, 2, 5, 1.19], [2912, 1, 4, 1.02], [998, 2, 4, 0.31], [20927, 1, 4, 1.51], [9760, 29, 4, 0.2], [997, 2, 4, 1.02], [1886, 2, 4, 0.44], [2436, 4, 4, 0.68], [3, 2, 4, 0.37], [7887, 4, 4, 0.97], [972, 3, 5, 0.51], [214, 3, 9, 0.42], [6158, 2, 4, 0.44], [2424, 80, 4, 0.86], [229, 1, 4, 0.91], [955, 2, 4, 0.52], [346, 3, 5, 0.2], [5076, 1, 4, 0.81], [3495, 3, 13, 0.92], [74, 1, 4, 2.78], [5165, 2, 5, 0.86], [11953, 1, 4, 0.45], [996, 2, 4, 1.02], [11770, 1, 4, 0.2], [12721, 2, 4, 1.13], [9491, 21, 12, 0.22], [22316, 3, 4, 0.6], [1492, 1, 4, 0.2], [7573, 1, 9, 2.21], [9372, 1, 4, 1.33], [11772, 1, 4, 0.21], [2423, 80, 5, 1.72], [2912, 2, 7, 1.86], [2438, 2, 5, 1.88], [3975, 4, 5, 1.26], [11952, 1, 4, 0.85], [6497, 1, 4, 1.11], [5584, 3, 4, 2.61], [346, 1, 4, 0.95], [5209, 3, 5, 0.21], [5434, 1, 4, 1.08], [24257, 1, 4, 0.48], [823, 1, 4, 0.44], [9082, 3, 19, 0.83], [335, 3, 9, 0.87], [10407, 10, 7, 1.19], [1622, 1, 4, 0.49], [8898, 3, 4, 4.0], [2424, 29, 4, 0.37], [12764, 2, 8, 0.23], [8676, 2, 4, 1.22], [6496, 1, 4, 1.31], [3900, 3, 4, 1.65], [5946, 1, 4, 0.53], [11490, 1, 4, 0.48], [33, 1, 4, 0.66], [10388, 2, 4, 0.7], [2805, 137, 4, 1.25], [1339, 3, 10, 0.36], [7567, 3, 4, 1.33], [972, 1, 4, 0.68], [1703, 2, 4, 0.5], [13893, 2, 4, 0.91], [6805, 1, 5, 0.26], [6097, 80, 4, 0.41], [22247, 2, 4, 1.14], [2104, 3, 9, 1.27], [1163, 3, 4, 0.46], [11814, 1, 4, 0.48], [1414, 15, 4, 0.45], [8635, 3, 4, 1.12], [38, 1, 4, 0.91], [9784, 1, 4, 0.58], [1895, 3, 4, 1.49], [1274, 1, 4, 0.23], [95, 3, 15, 0.19], [11116, 1, 4, 0.56], [8283, 2, 5, 1.21], [788, 2, 4, 0.38], [8104, 1, 4, 0.93], [10386, 2, 4, 0.85], [12212, 29, 4, 0.52], [8274, 3, 4, 0.87], [114, 3, 4, 1.28], [9690, 1, 4, 0.22], [8659, 1, 4, 0.41], [19931, 1, 4, 1.26], [76, 2, 4, 0.55], [9065, 2, 4, 0.72], [4232, 80, 4, 0.38], [418, 2, 4, 0.65], [12979, 25, 7, 0.58], [12501, 1, 4, 1.24], [589, 2, 115, 2.97], [88, 10, 421, 3.17], [8915, 2, 170, 2.69], [2327, 2, 113, 3.34], [6935, 2, 209, 6.0], [2778, 2, 118, 3.31], [305, 2, 110, 3.21], [2328, 2, 113, 3.78], [615, 2, 101, 3.09], [5493, 2, 113, 1.57], [616, 2, 101, 1.9], [326, 2, 81, 3.85], [6936, 2, 209, 5.65], [8650, 2, 168, 5.79], [1446, 2, 119, 3.63], [143, 2, 111, 3.59], [144, 2, 111, 3.68], [593, 2, 171, 3.32], [10, 2, 31, 3.03], [5491, 2, 100, 1.82], [7036, 1, 97, 5.41], [3893, 1, 94, 3.1], [1124, 2, 172, 2.73], [146, 2, 113, 3.79], [7885, 4, 32, 1.42], [7886, 4, 50, 1.69], [3891, 1, 94, 3.15], [75, 2, 129, 4.27], [362, 2, 107, 3.49], [5208, 3, 522, 1.87], [21793, 1, 222, 2.06], [3889, 1, 94, 3.61], [2054, 3, 442, 2.68], [3980, 4, 426, 4.28], [7084, 3, 99, 3.94], [12870, 1, 103, 5.58], [2050, 3, 375, 2.33], [145, 2, 113, 3.54], [5165, 1, 44, 2.5], [10149, 3, 662, 4.5], [13028, 3, 134, 3.45], [8672, 2, 211, 5.36], [2912, 1, 44, 3.71], [998, 2, 179, 3.89], [9760, 29, 54, 3.6], [997, 2, 221, 3.08], [1886, 2, 145, 1.69], [2436, 4, 107, 2.19], [3, 2, 108, 3.71], [972, 3, 444, 3.65], [214, 3, 607, 1.59], [6158, 2, 241, 2.39], [2424, 80, 157, 3.61], [229, 1, 63, 3.28], [955, 2, 100, 1.84], [346, 3, 473, 3.2], [5076, 1, 122, 2.79], [3495, 3, 716, 4.0], [74, 1, 173, 6.0], [5165, 2, 354, 2.35], [11953, 1, 186, 1.71], [996, 2, 221, 2.8], [11770, 1, 163, 3.6], [12721, 2, 261, 3.02], [9491, 21, 1587, 3.27]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 6, 1.34], [305, 2, 4, 0.51], [615, 2, 4, 0.2], [2778, 2, 6, 0.2], [205, 2, 5, 0.26], [5493, 2, 4, 0.37], [6936, 2, 5, 1.35], [616, 2, 4, 0.47], [88, 10, 11, 0.2], [2049, 3, 8, 0.2], [144, 2, 5, 0.47], [8648, 2, 4, 0.71], [326, 2, 5, 0.7], [589, 2, 5, 0.2], [11681, 2, 5, 1.37], [7036, 1, 4, 1.23], [8650, 2, 6, 0.96], [593, 2, 5, 0.52], [2327, 2, 5, 0.29], [141, 2, 5, 0.53], [206, 2, 4, 0.65], [7004, 1, 4, 0.61], [3840, 1, 4, 0.38], [3891, 1, 4, 0.53], [2050, 3, 5, 1.69], [146, 2, 5, 1.07], [3980, 4, 5, 1.19], [2055, 3, 4, 1.74], [143, 2, 5, 0.51], [3889, 1, 4, 0.6], [10, 2, 4, 0.39], [7885, 4, 5, 0.2], [2054, 3, 5, 1.86], [7886, 4, 4, 0.65], [8672, 2, 5, 0.73], [12870, 1, 5, 0.92], [10993, 2, 4, 0.63], [2057, 3, 5, 1.78], [5165, 1, 4, 0.67], [7084, 3, 4, 0.28], [145, 2, 4, 1.03], [21793, 1, 4, 1.09], [523, 2, 4, 0.78], [159, 3, 5, 0.37], [7005, 1, 4, 0.47], [3981, 3, 13, 1.42], [3982, 3, 11, 1.18], [142, 2, 5, 0.52], [20927, 1, 4, 0.92], [33, 1, 4, 1.58], [956, 2, 4, 0.39], [997, 2, 5, 1.43], [6158, 2, 6, 0.43], [214, 3, 11, 0.2], [7887, 4, 5, 1.2], [5165, 2, 5, 0.66], [22316, 3, 5, 0.51], [2912, 1, 4, 0.91], [11953, 1, 5, 0.22], [35, 1, 4, 1.58], [229, 1, 4, 1.25], [998, 2, 4, 0.92], [346, 3, 5, 0.21], [82, 2, 4, 0.41], [6497, 1, 4, 0.47], [389, 4, 5, 0.88], [996, 2, 6, 1.47], [5946, 1, 4, 0.53], [1492, 1, 4, 0.46], [972, 3, 4, 1.51], [7567, 3, 4, 1.47], [11767, 1, 4, 0.43], [192, 3, 9, 1.01], [11490, 1, 4, 0.48], [6496, 1, 5, 0.55], [4176, 4, 5, 1.31], [74, 1, 5, 0.62], [411, 2, 4, 0.65], [1413, 15, 4, 0.28], [22317, 3, 5, 0.51], [2104, 3, 8, 0.2], [4253, 1, 4, 0.73], [2912, 2, 5, 0.88], [8677, 3, 5, 0.9], [2436, 4, 4, 0.44], [336, 15, 5, 0.37], [39, 1, 4, 0.51], [12212, 29, 4, 0.49], [37, 1, 4, 0.66], [201, 3, 4, 0.51], [345, 3, 4, 0.76], [11085, 2, 5, 1.53], [1274, 1, 4, 0.73], [1277, 1, 4, 0.36], [13023, 3, 4, 1.26], [21269, 3, 4, 2.99], [6494, 1, 4, 0.2], [12271, 2, 4, 0.84], [8676, 2, 4, 0.98], [22247, 2, 4, 1.39], [3979, 3, 5, 1.18], [3, 2, 4, 0.71], [823, 1, 4, 0.49], [10408, 10, 6, 1.64], [36, 1, 4, 0.91], [10388, 2, 5, 1.14], [9784, 1, 4, 0.72], [10631, 2, 4, 1.73], [2805, 137, 8, 0.94], [9, 1, 4, 0.36], [10936, 2, 4, 0.45], [202, 2, 4, 0.38], [1414, 15, 4, 0.45], [11489, 1, 4, 0.39], [8675, 2, 4, 1.02], [3048, 3, 4, 1.17], [161, 3, 5, 1.51], [13928, 1, 4, 0.47], [346, 1, 5, 0.3], [9372, 1, 4, 1.49], [12764, 2, 6, 0.58], [12225, 1, 4, 0.69], [11814, 1, 4, 0.23], [13280, 1, 4, 0.75], [10386, 2, 4, 0.36], [10407, 10, 6, 1.35], [4076, 3, 4, 1.19], [8898, 3, 4, 1.18], [79, 1, 4, 0.48], [2878, 1, 4, 0.39], [11089, 1, 4, 0.57], [13035, 3, 4, 1.32], [491, 10, 6, 0.93], [3576, 25, 4, 0.52], [23611, 3, 5, 0.5], [972, 1, 4, 0.5], [6935, 2, 188, 5.01], [305, 2, 119, 3.13], [615, 2, 95, 2.87], [2778, 2, 126, 3.26], [205, 2, 26, 2.28], [5493, 2, 104, 1.79], [6936, 2, 188, 5.39], [616, 2, 105, 1.7], [88, 10, 471, 3.03], [2049, 3, 445, 3.07], [144, 2, 100, 3.64], [8648, 2, 184, 4.9], [326, 2, 88, 2.74], [589, 2, 124, 2.8], [11681, 2, 221, 5.54], [7036, 1, 104, 4.47], [8650, 2, 184, 4.67], [593, 2, 187, 2.96], [2327, 2, 123, 3.18], [141, 2, 125, 3.78], [206, 2, 39, 1.86], [7004, 1, 76, 1.97], [3840, 1, 166, 1.53], [3891, 1, 120, 1.82], [2050, 3, 371, 5.52], [146, 2, 123, 3.76], [3980, 4, 391, 4.56], [2055, 3, 371, 5.61], [143, 2, 120, 3.14], [3889, 1, 120, 1.96], [10, 2, 102, 1.55], [7885, 4, 34, 1.47], [2054, 3, 371, 5.86], [8672, 2, 232, 4.88], [12870, 1, 111, 5.91], [10993, 2, 51, 2.01], [2057, 3, 371, 5.72], [5165, 1, 46, 2.09], [7084, 3, 106, 3.63], [145, 2, 123, 3.54], [21793, 1, 233, 2.97], [523, 2, 125, 3.25], [159, 3, 687, 1.46], [7005, 1, 76, 1.81], [3981, 3, 1311, 4.22], [3982, 3, 642, 4.54], [142, 2, 125, 3.14], [20927, 1, 47, 2.98], [956, 2, 103, 1.55], [997, 2, 58, 5.09], [6158, 2, 213, 3.44], [214, 3, 534, 1.88], [5165, 2, 367, 1.95], [22316, 3, 247, 2.67], [2912, 1, 46, 2.55], [11953, 1, 159, 2.59], [229, 1, 65, 3.21], [346, 3, 484, 2.59], [82, 2, 58, 1.62], [6497, 1, 36, 1.7], [389, 4, 138, 4.2], [996, 2, 196, 4.95], [5946, 1, 120, 1.82], [1492, 1, 36, 1.69]]</t>
-  </si>
-  <si>
-    <t>[[141, 2, 4, 0.2], [2328, 2, 4, 0.2], [8650, 2, 4, 1.21], [5491, 2, 4, 0.2], [2327, 2, 5, 0.26], [5493, 2, 4, 0.37], [589, 2, 5, 0.27], [8672, 2, 6, 0.66], [326, 2, 4, 1.37], [6935, 2, 9, 1.31], [205, 2, 4, 0.36], [206, 2, 4, 0.2], [11838, 2, 5, 0.2], [12721, 2, 5, 0.48], [6936, 2, 4, 1.5], [8915, 2, 5, 0.2], [2049, 3, 11, 0.2], [2778, 2, 6, 0.22], [1446, 2, 4, 0.2], [8676, 2, 4, 0.52], [305, 2, 5, 0.98], [615, 2, 4, 0.47], [593, 2, 5, 0.36], [21793, 1, 4, 1.62], [616, 2, 4, 0.48], [413, 1, 4, 0.66], [411, 2, 4, 0.2], [10574, 3, 6, 1.51], [412, 1, 4, 0.85], [8675, 2, 6, 0.98], [8673, 2, 5, 0.72], [143, 2, 4, 0.5], [6158, 2, 5, 0.89], [151, 1, 4, 0.45], [11836, 2, 5, 0.2], [10149, 3, 13, 0.75], [2050, 3, 5, 0.34], [3495, 3, 13, 1.28], [146, 2, 4, 0.49], [2054, 3, 5, 0.51], [75, 2, 5, 1.67], [88, 10, 9, 0.95], [7885, 4, 5, 0.69], [416, 1, 4, 0.66], [144, 2, 4, 0.47], [21798, 1, 4, 0.36], [10993, 2, 4, 0.65], [2859, 15, 4, 0.52], [346, 3, 5, 1.02], [335, 3, 10, 0.87], [2423, 80, 4, 0.79], [7705, 2, 4, 0.9], [2424, 29, 4, 1.45], [214, 3, 9, 1.24], [2423, 29, 4, 0.72], [7704, 2, 4, 0.9], [9784, 1, 4, 0.52], [5165, 1, 4, 0.65], [3848, 2, 4, 1.01], [13023, 3, 6, 1.51], [2424, 80, 4, 1.48], [346, 1, 4, 0.94], [1519, 3, 10, 0.22], [201, 3, 4, 1.01], [410, 1, 4, 0.55], [13034, 3, 5, 1.37], [345, 3, 4, 1.04], [5208, 3, 5, 0.48], [11490, 1, 4, 0.42], [6494, 1, 4, 0.48], [11770, 1, 4, 1.72], [432, 3, 5, 2.04], [7004, 1, 4, 0.41], [12373, 1, 5, 1.06], [308, 1, 5, 1.24], [2703, 3, 4, 0.83], [3430, 15, 4, 0.91], [7706, 2, 4, 0.8], [6952, 1, 4, 0.48], [20927, 1, 4, 0.7], [114, 3, 4, 0.2], [1886, 2, 4, 0.44], [3429, 15, 4, 0.42], [7886, 4, 6, 0.44], [94, 4, 4, 0.53], [1492, 1, 4, 1.09], [13928, 1, 4, 0.47], [105, 3, 4, 0.47], [11811, 1, 4, 0.94], [3981, 3, 9, 0.51], [3893, 1, 4, 1.47], [2331, 1, 4, 0.69], [3891, 1, 4, 1.47], [11089, 1, 4, 0.81], [10407, 10, 6, 1.9], [3, 2, 4, 1.8], [1490, 1, 4, 1.03], [13033, 3, 4, 0.5], [22317, 3, 5, 0.47], [5584, 3, 4, 3.29], [11674, 1, 4, 0.35], [944, 15, 4, 0.4], [1274, 1, 4, 0.36], [952, 4, 4, 1.83], [10410, 10, 6, 1.9], [7708, 2, 4, 0.9], [5812, 3, 4, 1.51], [9690, 1, 4, 1.2], [9342, 2, 4, 0.57], [10409, 10, 6, 1.67], [5946, 1, 4, 1.47], [202, 2, 4, 0.62], [1339, 3, 10, 0.36], [10398, 2, 4, 1.36], [8898, 3, 4, 0.47], [95, 3, 8, 2.52], [957, 2, 4, 0.54], [963, 3, 4, 0.93], [21003, 2, 4, 0.48], [1339, 1, 4, 0.43], [3478, 2, 4, 0.45], [20969, 3, 4, 0.86], [7703, 2, 4, 0.9], [11677, 1, 4, 1.16], [10516, 3, 5, 0.37], [823, 1, 4, 0.41], [9082, 3, 15, 0.83], [3980, 4, 5, 1.26], [14041, 3, 4, 1.27], [186, 3, 7, 0.45], [20196, 2, 4, 0.96], [3889, 1, 4, 1.47], [4253, 1, 4, 1.02], [141, 2, 120, 3.41], [2328, 2, 116, 4.39], [8650, 2, 173, 4.85], [5491, 2, 100, 1.58], [2327, 2, 116, 4.36], [5493, 2, 100, 1.96], [589, 2, 119, 3.07], [8672, 2, 220, 4.44], [326, 2, 84, 3.57], [6935, 2, 216, 6.0], [205, 2, 72, 1.55], [206, 2, 101, 1.7], [11838, 2, 205, 3.55], [12721, 2, 217, 3.99], [6936, 2, 216, 5.11], [2049, 3, 143, 3.44], [2778, 2, 144, 3.37], [1446, 2, 119, 2.17], [8676, 2, 265, 1.93], [305, 2, 115, 3.43], [615, 2, 101, 1.83], [593, 2, 153, 1.5], [21793, 1, 219, 4.86], [616, 2, 101, 1.85], [413, 1, 80, 2.2], [411, 2, 85, 2.15], [10574, 3, 383, 4.64], [412, 1, 77, 3.2], [8675, 2, 220, 4.47], [8673, 2, 259, 4.94], [143, 2, 137, 1.89], [6158, 2, 242, 3.08], [151, 1, 61, 1.83], [11836, 2, 205, 3.39], [10149, 3, 815, 4.12], [2050, 3, 369, 2.68], [3495, 3, 888, 3.48], [146, 2, 140, 1.87], [2054, 3, 375, 2.73], [75, 2, 110, 5.24], [88, 10, 516, 4.25], [7885, 4, 37, 1.91], [416, 1, 80, 2.2], [144, 2, 137, 1.83], [21798, 1, 129, 1.89], [10993, 2, 49, 2.18], [2859, 15, 64, 1.93], [346, 3, 553, 3.98], [335, 3, 1178, 4.78], [2423, 80, 170, 3.16], [7705, 2, 163, 3.42], [2424, 29, 31, 3.72], [214, 3, 337, 4.39], [2423, 29, 34, 3.1], [7704, 2, 163, 3.42], [9784, 1, 67, 1.93], [5165, 1, 44, 2.95], [3848, 2, 155, 2.87], [13023, 3, 545, 3.74], [2424, 80, 154, 3.78], [346, 1, 139, 3.74], [1519, 3, 1275, 3.06], [201, 3, 228, 4.48], [410, 1, 97, 1.99], [13034, 3, 539, 3.62], [345, 3, 277, 2.93], [5208, 3, 521, 2.08]]</t>
-  </si>
-  <si>
-    <t>[[2778, 2, 6, 0.2], [6935, 2, 7, 1.55], [6936, 2, 4, 1.17], [305, 2, 4, 0.23], [8672, 2, 5, 0.66], [1504, 2, 6, 0.58], [615, 2, 4, 0.2], [12721, 2, 5, 0.72], [2327, 2, 4, 0.2], [143, 2, 4, 1.01], [146, 2, 4, 0.87], [2328, 2, 4, 0.26], [11681, 2, 5, 0.46], [205, 2, 5, 0.37], [5491, 2, 4, 0.2], [8676, 2, 4, 0.6], [8673, 2, 5, 0.73], [11835, 2, 4, 0.55], [8650, 2, 5, 1.28], [144, 2, 5, 0.78], [308, 1, 5, 1.73], [11837, 2, 4, 0.55], [3, 2, 5, 0.66], [6097, 80, 5, 2.11], [22247, 2, 5, 1.21], [11836, 2, 5, 0.2], [6497, 1, 4, 0.2], [6097, 29, 4, 2.61], [2424, 29, 4, 0.37], [6098, 80, 4, 2.34], [11739, 2, 4, 1.36], [2054, 3, 4, 0.62], [13260, 29, 4, 0.73], [6494, 1, 4, 0.48], [3429, 15, 4, 0.36], [326, 2, 4, 0.66], [2424, 80, 4, 0.86], [75, 2, 4, 0.37], [335, 3, 10, 1.23], [1339, 1, 4, 0.43], [411, 2, 4, 0.46], [1492, 1, 4, 1.09], [1339, 3, 10, 0.36], [1050, 2, 4, 0.2], [6496, 1, 5, 1.05], [7704, 2, 4, 1.79], [214, 3, 9, 1.24], [346, 1, 4, 0.49], [346, 3, 5, 0.47], [2859, 15, 4, 0.72], [10149, 3, 13, 0.75], [345, 3, 4, 0.51], [13264, 29, 5, 0.52], [13258, 29, 4, 0.73], [1490, 1, 4, 1.03], [1243, 2, 4, 0.86], [22558, 3, 6, 0.21], [5208, 3, 10, 0.53], [201, 3, 4, 1.05], [229, 1, 4, 1.25], [10407, 10, 6, 1.9], [8943, 3, 4, 0.37], [432, 3, 4, 0.9], [2438, 1, 4, 0.62], [7705, 2, 4, 1.79], [2331, 1, 4, 0.91], [13259, 29, 4, 1.38], [2912, 1, 4, 0.96], [7706, 2, 4, 1.79], [12229, 2, 4, 0.45], [957, 2, 5, 0.76], [13928, 1, 4, 0.47], [114, 3, 4, 0.62], [3478, 2, 4, 0.45], [1163, 3, 4, 1.16], [1548, 1, 4, 1.09], [21793, 1, 4, 2.34], [9784, 1, 4, 0.74], [7036, 1, 4, 1.63], [8938, 2, 4, 0.58], [11844, 2, 4, 0.63], [11490, 1, 4, 0.46], [2703, 3, 4, 1.72], [11687, 2, 4, 0.79], [11404, 2, 4, 0.5], [13258, 25, 4, 0.73], [410, 1, 4, 0.55], [1886, 2, 4, 0.44], [159, 16, 4, 0.36], [9065, 2, 4, 0.84], [94, 4, 4, 0.6], [11690, 2, 4, 0.52], [19687, 1, 4, 0.43], [12870, 1, 4, 0.94], [413, 1, 4, 0.53], [7708, 2, 4, 1.79], [414, 1, 4, 0.61], [2438, 2, 5, 0.53], [11689, 2, 4, 0.77], [956, 2, 4, 0.57], [11161, 1, 5, 1.64], [11159, 1, 7, 1.23], [22125, 2, 4, 0.36], [5976, 1, 4, 0.85], [9760, 29, 4, 0.85], [21781, 2, 4, 0.47], [12373, 1, 5, 1.42], [105, 3, 4, 0.62], [7005, 1, 4, 0.81], [1274, 1, 4, 2.11], [5584, 3, 4, 3.29], [2991, 3, 4, 1.0], [2805, 137, 5, 1.09], [13259, 25, 4, 1.35], [11811, 1, 4, 0.94], [9785, 1, 4, 0.74], [4253, 1, 4, 0.48], [3495, 3, 13, 1.28], [20927, 1, 4, 0.7], [8600, 1, 4, 1.1], [9209, 29, 4, 0.37], [11489, 1, 4, 0.46], [9372, 1, 4, 1.06], [247, 1, 4, 1.31], [10147, 1, 4, 0.36], [9690, 1, 4, 1.2], [9491, 21, 10, 1.0], [6360, 10, 9, 0.65], [12764, 2, 5, 0.43], [8285, 2, 5, 0.49], [5769, 3, 6, 0.52], [7007, 1, 4, 0.81], [21269, 3, 4, 1.96], [5076, 1, 4, 0.91], [2778, 2, 141, 3.11], [6935, 2, 226, 6.0], [6936, 2, 256, 4.93], [305, 2, 113, 3.49], [8672, 2, 265, 3.11], [1504, 2, 156, 3.88], [615, 2, 113, 2.41], [12721, 2, 216, 4.22], [2327, 2, 116, 4.36], [143, 2, 114, 3.86], [146, 2, 116, 3.79], [2328, 2, 116, 4.39], [11681, 2, 250, 3.24], [5491, 2, 100, 1.54], [8676, 2, 220, 3.63], [8673, 2, 220, 5.48], [11835, 2, 248, 1.99], [8650, 2, 172, 6.0], [144, 2, 115, 3.95], [308, 1, 157, 5.12], [11837, 2, 248, 1.99], [3, 2, 93, 3.74], [6097, 80, 52, 5.96], [22247, 2, 216, 4.77], [11836, 2, 205, 3.47], [6497, 1, 30, 3.28], [6097, 29, 27, 6.0], [2424, 29, 31, 1.82], [11739, 2, 23, 3.34], [2054, 3, 375, 2.86], [13260, 29, 67, 3.21], [6494, 1, 47, 1.85], [3429, 15, 35, 1.56], [326, 2, 83, 2.88], [2424, 80, 156, 3.5], [75, 2, 134, 2.28], [335, 3, 1153, 3.91], [1339, 1, 67, 1.76], [411, 2, 100, 2.05], [1492, 1, 34, 3.03], [1339, 3, 1618, 1.61], [1050, 2, 44, 1.45], [6496, 1, 36, 4.1], [7704, 2, 162, 4.38], [214, 3, 337, 4.39], [346, 1, 143, 1.87], [346, 3, 573, 1.76], [2859, 15, 63, 3.73], [10149, 3, 809, 2.42], [345, 3, 276, 2.94], [13264, 29, 66, 3.03], [13258, 29, 36, 3.54], [1490, 1, 45, 4.84], [1243, 2, 90, 4.17], [22558, 3, 368, 3.76], [5208, 3, 438, 2.84], [201, 3, 276, 3.99], [229, 1, 75, 3.89], [10407, 10, 1073, 4.63], [8943, 3, 305, 1.61], [432, 3, 276, 2.97], [2438, 1, 48, 4.17], [7705, 2, 162, 4.38], [2331, 1, 108, 2.68], [13259, 29, 32, 5.1], [2912, 1, 44, 2.78]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 5, 0.91], [141, 2, 4, 0.48], [2778, 2, 5, 0.59], [362, 2, 4, 0.73], [205, 2, 4, 0.36], [6935, 2, 8, 1.55], [12721, 2, 6, 1.21], [206, 2, 4, 0.2], [8676, 2, 5, 0.6], [2049, 3, 12, 0.2], [22247, 2, 5, 1.0], [523, 2, 4, 0.66], [305, 2, 5, 0.73], [8650, 2, 5, 1.27], [8648, 2, 5, 0.88], [2776, 2, 5, 0.2], [2328, 2, 4, 1.29], [616, 2, 4, 1.29], [2327, 2, 4, 0.64], [8674, 2, 4, 0.67], [589, 2, 5, 0.2], [11835, 2, 4, 0.49], [412, 1, 4, 0.92], [143, 2, 4, 0.57], [146, 2, 4, 0.51], [6497, 1, 5, 0.2], [6097, 80, 4, 2.36], [583, 2, 4, 0.45], [326, 2, 5, 0.41], [10149, 3, 13, 0.75], [6097, 29, 5, 0.66], [11836, 2, 5, 0.54], [145, 2, 4, 0.42], [144, 2, 4, 0.54], [10574, 3, 5, 0.6], [6494, 1, 4, 0.48], [6496, 1, 4, 1.05], [2054, 3, 4, 0.81], [1413, 15, 4, 0.43], [6098, 80, 4, 0.71], [1886, 2, 6, 0.2], [944, 15, 4, 0.2], [21793, 1, 4, 2.34], [6098, 29, 4, 1.08], [247, 1, 4, 2.27], [335, 3, 10, 0.87], [3429, 15, 4, 0.36], [201, 3, 4, 0.49], [1490, 1, 4, 1.35], [21798, 1, 4, 0.36], [308, 1, 5, 0.54], [2859, 15, 4, 0.44], [6158, 2, 5, 0.89], [9998, 80, 4, 1.38], [3478, 2, 4, 0.45], [13928, 1, 4, 0.47], [7084, 3, 4, 0.7], [11489, 1, 4, 0.37], [1703, 2, 4, 0.64], [107, 2, 4, 1.42], [5812, 3, 5, 2.0], [4253, 1, 4, 1.02], [107, 7, 5, 1.39], [9342, 2, 4, 0.57], [1050, 2, 4, 0.38], [94, 4, 4, 0.48], [186, 3, 7, 0.45], [11490, 1, 4, 0.42], [1309, 1, 4, 0.9], [214, 3, 9, 1.24], [5813, 3, 6, 2.0], [10398, 2, 4, 0.37], [5811, 3, 5, 1.24], [11767, 1, 4, 0.43], [2821, 3, 8, 0.5], [9491, 21, 10, 0.51], [8599, 1, 4, 0.49], [3980, 4, 5, 1.26], [11811, 1, 4, 0.94], [11771, 1, 4, 2.24], [229, 1, 4, 0.89], [8898, 3, 5, 3.26], [8944, 3, 4, 0.37], [3495, 3, 13, 1.28], [1339, 3, 10, 0.36], [1049, 2, 4, 0.38], [9358, 1, 4, 1.42], [409, 1, 4, 1.06], [955, 2, 4, 0.52], [192, 3, 7, 1.01], [346, 3, 5, 0.47], [2991, 3, 5, 1.5], [19687, 1, 4, 0.43], [12764, 2, 5, 0.43], [13928, 2, 4, 0.49], [7036, 1, 4, 1.63], [9690, 1, 4, 1.2], [22573, 2, 4, 0.8], [10124, 1, 4, 2.18], [6575, 3, 4, 1.62], [5584, 3, 4, 3.29], [3334, 5, 4, 0.63], [8897, 3, 5, 3.26], [10147, 1, 4, 0.36], [1277, 1, 4, 0.48], [1701, 2, 4, 0.55], [11886, 2, 4, 0.75], [20927, 1, 4, 0.7], [1523, 1, 4, 0.67], [11678, 1, 4, 0.38], [4001, 3, 8, 0.93], [13260, 29, 4, 0.91], [23275, 2, 4, 0.81], [10516, 3, 5, 0.86], [11677, 1, 4, 1.16], [9065, 2, 4, 0.84], [973, 3, 5, 1.08], [45, 2, 4, 0.39], [3984, 3, 5, 0.62], [346, 1, 4, 0.49], [3979, 3, 5, 0.88], [21269, 3, 4, 0.44], [23031, 3, 4, 1.65], [19924, 2, 4, 0.73], [9373, 5, 4, 1.21], [10181, 26, 5, 0.46], [958, 2, 4, 0.36], [11690, 2, 4, 0.52], [5976, 1, 4, 1.32], [9069, 1, 4, 0.41], [23032, 3, 4, 1.46], [7005, 1, 4, 0.81], [1339, 1, 4, 0.43], [8672, 2, 220, 4.44], [141, 2, 120, 3.41], [2778, 2, 144, 2.62], [362, 2, 131, 2.62], [205, 2, 72, 1.55], [6935, 2, 215, 6.0], [12721, 2, 218, 4.83], [206, 2, 58, 1.58], [8676, 2, 220, 3.63], [2049, 3, 504, 1.66], [22247, 2, 218, 4.36], [523, 2, 120, 3.58], [305, 2, 113, 3.42], [8650, 2, 173, 4.68], [8648, 2, 173, 4.55], [2776, 2, 121, 3.42], [2328, 2, 139, 3.41], [616, 2, 100, 3.41], [2327, 2, 137, 3.51], [8674, 2, 265, 2.22], [589, 2, 141, 2.49], [11835, 2, 243, 2.97], [412, 1, 77, 3.26], [143, 2, 136, 2.03], [146, 2, 139, 1.9], [6497, 1, 30, 3.28], [6097, 80, 51, 6.0], [583, 2, 83, 2.31], [326, 2, 83, 2.88], [10149, 3, 815, 4.12], [6097, 29, 31, 3.3], [11836, 2, 243, 3.07], [145, 2, 139, 1.73], [144, 2, 136, 1.97], [10574, 3, 461, 3.81], [6494, 1, 47, 1.85], [6496, 1, 37, 3.01], [2054, 3, 126, 2.98], [1413, 15, 92, 1.76], [6098, 80, 70, 3.04], [1886, 2, 120, 3.46], [944, 15, 14, 2.26], [21793, 1, 212, 6.0], [6098, 29, 35, 4.24], [247, 1, 80, 5.3], [335, 3, 1178, 4.78], [3429, 15, 35, 1.56], [201, 3, 280, 1.87], [1490, 1, 45, 3.59], [21798, 1, 129, 1.89], [308, 1, 157, 3.94], [2859, 15, 63, 1.78], [6158, 2, 242, 3.08], [9998, 80, 108, 4.32], [3478, 2, 70, 1.8], [13928, 1, 43, 3.42], [7084, 3, 119, 2.35], [11489, 1, 43, 2.03], [1703, 2, 151, 2.46], [107, 2, 44, 3.72], [5812, 3, 532, 5.88], [4253, 1, 158, 2.89], [107, 7, 220, 3.67], [9342, 2, 427, 2.03], [1050, 2, 44, 1.45], [94, 4, 114, 1.85], [186, 3, 616, 1.77]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 8, 0.97], [305, 2, 4, 0.2], [2328, 2, 5, 0.2], [2778, 2, 5, 0.65], [8650, 2, 4, 0.46], [8672, 2, 7, 0.2], [5491, 2, 4, 0.44], [143, 2, 5, 0.51], [6936, 2, 4, 1.26], [145, 2, 4, 0.5], [11837, 2, 4, 0.45], [11681, 2, 5, 0.46], [5493, 2, 5, 0.6], [589, 2, 4, 0.36], [75, 2, 5, 0.97], [146, 2, 4, 0.57], [12721, 2, 5, 0.48], [8673, 2, 5, 0.2], [8853, 2, 4, 1.46], [326, 2, 5, 0.85], [11835, 2, 5, 0.36], [1005, 2, 4, 0.2], [144, 2, 4, 0.46], [990, 2, 4, 0.46], [8915, 2, 5, 1.14], [308, 1, 5, 1.73], [88, 10, 10, 0.19], [434, 2, 5, 0.3], [6158, 2, 6, 0.2], [2424, 29, 4, 0.37], [7704, 2, 4, 1.5], [2423, 29, 4, 0.72], [11836, 2, 4, 0.22], [2424, 80, 4, 0.86], [7705, 2, 4, 1.65], [1413, 15, 4, 0.2], [7706, 2, 4, 1.4], [10574, 3, 5, 1.51], [2054, 3, 4, 0.65], [2423, 80, 4, 0.79], [3, 2, 4, 0.79], [944, 15, 5, 0.2], [412, 1, 4, 0.92], [3478, 2, 4, 1.53], [2859, 15, 4, 1.62], [10149, 3, 13, 0.75], [12720, 2, 4, 0.98], [7004, 1, 4, 1.06], [74, 1, 4, 0.45], [346, 3, 5, 1.02], [11919, 1, 4, 0.77], [6497, 1, 4, 0.44], [1339, 3, 10, 0.36], [346, 1, 4, 0.94], [10993, 2, 4, 0.65], [13928, 1, 4, 0.47], [418, 2, 4, 0.49], [411, 2, 4, 0.37], [13260, 29, 5, 1.17], [13034, 3, 6, 0.9], [11089, 1, 4, 0.81], [7036, 1, 4, 1.63], [6952, 1, 4, 1.59], [13028, 3, 4, 0.37], [14037, 3, 4, 1.21], [1050, 2, 4, 0.2], [8274, 3, 4, 0.58], [7707, 2, 4, 1.0], [2991, 3, 4, 2.17], [1339, 1, 4, 0.43], [22317, 3, 8, 0.2], [9784, 1, 4, 0.71], [6494, 1, 4, 0.48], [7708, 2, 4, 1.5], [21793, 1, 5, 1.69], [6630, 3, 4, 2.4], [8943, 3, 4, 0.37], [1243, 2, 5, 0.7], [1490, 1, 4, 1.03], [3495, 3, 13, 1.28], [5208, 3, 5, 0.48], [2912, 1, 4, 0.85], [563, 2, 4, 0.44], [11491, 2, 4, 0.74], [11490, 1, 4, 0.37], [229, 1, 4, 1.25], [8944, 3, 4, 0.37], [5940, 3, 4, 0.2], [192, 3, 7, 1.26], [1049, 2, 4, 0.2], [6627, 3, 4, 0.2], [12229, 2, 4, 0.45], [11581, 29, 4, 0.87], [13033, 3, 4, 0.9], [2331, 1, 4, 0.91], [23275, 2, 4, 0.81], [201, 3, 4, 0.6], [5165, 1, 4, 0.73], [247, 1, 4, 1.19], [1274, 1, 4, 0.41], [214, 3, 9, 1.24], [7886, 4, 5, 0.44], [2805, 137, 5, 0.53], [21798, 1, 4, 0.47], [335, 3, 10, 0.87], [20555, 2, 4, 1.02], [8635, 3, 4, 0.58], [114, 3, 4, 1.48], [8898, 3, 5, 0.48], [6496, 1, 4, 1.3], [942, 3, 4, 0.5], [6629, 3, 4, 0.47], [1703, 2, 4, 0.53], [11770, 1, 4, 1.32], [5812, 3, 5, 0.5], [10406, 10, 7, 1.73], [202, 2, 4, 0.44], [83, 2, 4, 0.5], [9760, 29, 4, 1.71], [21269, 3, 5, 0.5], [332, 2, 4, 0.44], [215, 4, 4, 2.61], [186, 3, 9, 1.22], [9372, 1, 4, 1.06], [9827, 3, 4, 0.39], [4940, 1, 4, 0.35], [2821, 3, 8, 0.5], [10527, 3, 8, 2.22], [5811, 3, 5, 0.5], [1886, 2, 4, 0.44], [11767, 1, 4, 0.43], [11489, 1, 4, 0.37], [12373, 1, 5, 1.42], [21781, 2, 4, 0.47], [12870, 1, 4, 2.19], [6935, 2, 216, 6.0], [305, 2, 132, 2.92], [2328, 2, 116, 4.39], [2778, 2, 143, 2.79], [8650, 2, 203, 4.35], [8672, 2, 220, 4.66], [5491, 2, 100, 1.78], [143, 2, 114, 3.47], [6936, 2, 216, 5.5], [145, 2, 117, 3.46], [11837, 2, 246, 1.8], [11681, 2, 250, 3.24], [5493, 2, 83, 4.09], [589, 2, 102, 1.56], [75, 2, 112, 4.32], [146, 2, 117, 3.57], [12721, 2, 217, 3.99], [8673, 2, 221, 4.66], [8853, 2, 216, 5.41], [326, 2, 84, 2.61], [11835, 2, 243, 2.72], [1005, 2, 42, 3.58], [144, 2, 117, 3.38], [990, 2, 41, 2.06], [8915, 2, 173, 3.69], [308, 1, 157, 5.12], [88, 10, 430, 4.6], [434, 2, 98, 1.97], [6158, 2, 200, 3.82], [2424, 29, 31, 1.82], [7704, 2, 162, 3.94], [2423, 29, 34, 3.1], [11836, 2, 205, 3.39], [2424, 80, 156, 3.5], [7705, 2, 134, 5.14], [1413, 15, 78, 2.92], [7706, 2, 134, 5.14], [10574, 3, 383, 4.64], [2054, 3, 315, 3.06], [2423, 80, 170, 3.16], [3, 2, 92, 4.48], [944, 15, 34, 2.09], [412, 1, 77, 3.26], [10149, 3, 809, 2.42], [12720, 2, 217, 3.99], [74, 1, 186, 1.8], [346, 3, 553, 3.98], [11919, 1, 137, 2.41], [6497, 1, 35, 2.88], [1339, 3, 1618, 1.61], [346, 1, 139, 3.74], [10993, 2, 49, 2.18], [13928, 1, 43, 3.42], [418, 2, 130, 1.87], [411, 2, 85, 3.28], [13260, 29, 56, 4.28], [13034, 3, 538, 4.32], [11089, 1, 158, 2.49], [7036, 1, 117, 4.07], [6952, 1, 144, 5.09], [13028, 3, 133, 3.99], [1050, 2, 74, 1.52], [7707, 2, 161, 3.47], [2991, 3, 145, 6.0], [1339, 1, 67, 1.76]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 6, 0.87], [141, 2, 4, 0.2], [589, 2, 5, 0.2], [2778, 2, 4, 0.25], [6936, 2, 5, 0.44], [11681, 2, 10, 0.85], [2327, 2, 5, 0.64], [362, 2, 4, 0.56], [8648, 2, 5, 1.33], [8650, 2, 5, 1.58], [305, 2, 4, 1.0], [326, 2, 4, 1.06], [2328, 2, 5, 0.39], [2775, 2, 4, 0.25], [8853, 2, 5, 0.94], [361, 2, 5, 0.4], [143, 2, 5, 0.51], [593, 2, 6, 0.2], [140, 2, 4, 0.62], [3840, 1, 4, 0.5], [523, 2, 5, 0.54], [21793, 1, 4, 0.61], [151, 1, 5, 0.37], [412, 1, 4, 0.5], [7036, 1, 4, 0.41], [990, 2, 5, 0.2], [21798, 1, 4, 0.36], [5165, 1, 4, 0.95], [145, 2, 4, 0.88], [12349, 1, 4, 1.57], [201, 3, 6, 0.66], [6952, 1, 4, 1.29], [2050, 3, 4, 1.21], [6097, 80, 4, 2.63], [2055, 3, 5, 0.96], [345, 3, 6, 0.2], [10993, 2, 4, 0.73], [144, 2, 4, 0.61], [7084, 3, 4, 2.49], [2057, 3, 5, 0.74], [3891, 1, 4, 0.5], [11770, 1, 4, 0.44], [998, 2, 4, 0.48], [2912, 1, 4, 0.91], [5165, 2, 7, 0.53], [3893, 1, 4, 0.74], [9372, 1, 4, 0.79], [12870, 1, 4, 0.94], [12343, 1, 4, 1.57], [1886, 2, 4, 0.5], [5208, 3, 5, 0.35], [7885, 4, 4, 0.74], [12351, 1, 4, 0.82], [6097, 29, 4, 2.41], [6098, 80, 4, 1.64], [6158, 2, 5, 1.09], [2424, 80, 4, 0.86], [3334, 5, 4, 0.53], [11089, 1, 4, 0.62], [10149, 3, 15, 0.75], [12345, 1, 4, 1.57], [12344, 1, 4, 0.52], [1492, 1, 4, 0.56], [1519, 3, 12, 0.22], [4032, 29, 4, 0.55], [3889, 1, 4, 0.85], [2912, 2, 5, 0.88], [12304, 1, 4, 0.72], [13028, 3, 4, 1.36], [3576, 25, 4, 1.17], [972, 3, 4, 0.51], [411, 2, 4, 0.65], [13034, 3, 4, 1.51], [2331, 1, 4, 0.89], [229, 1, 4, 2.27], [11583, 29, 4, 0.46], [11426, 25, 4, 0.4], [11490, 1, 4, 0.65], [5151, 2, 4, 0.45], [3, 2, 4, 0.57], [5076, 1, 4, 0.55], [12764, 2, 5, 0.43], [13893, 2, 4, 0.73], [2805, 137, 4, 0.98], [3478, 2, 4, 0.87], [1703, 2, 4, 0.5], [2160, 68, 4, 1.17], [3575, 25, 4, 0.6], [13023, 3, 5, 1.25], [5812, 3, 5, 2.0], [13280, 1, 4, 1.09], [4253, 1, 4, 0.98], [2438, 2, 5, 0.53], [11404, 2, 4, 0.43], [11814, 1, 4, 0.48], [3577, 25, 4, 0.52], [9289, 29, 4, 0.48], [75, 2, 4, 0.37], [11813, 1, 4, 0.74], [9971, 2, 4, 1.82], [957, 2, 5, 0.91], [9967, 2, 4, 0.73], [11150, 2, 5, 0.4], [9069, 1, 4, 0.63], [22317, 3, 4, 0.44], [8283, 2, 5, 1.27], [1413, 15, 4, 0.68], [2878, 1, 4, 0.76], [5584, 3, 4, 1.03], [4586, 10, 11, 0.8], [9964, 2, 4, 2.27], [10407, 10, 7, 0.36], [9491, 21, 9, 1.43], [9965, 2, 4, 1.82], [114, 3, 4, 1.28], [10609, 1, 4, 0.96], [289, 3, 4, 0.84], [13249, 29, 4, 0.93], [4076, 3, 4, 1.59], [21697, 3, 4, 0.45], [14041, 3, 4, 1.27], [8926, 1, 4, 1.74], [12647, 1, 4, 0.37], [192, 3, 8, 1.79], [24257, 1, 4, 0.97], [11739, 2, 4, 0.43], [1277, 1, 4, 0.43], [336, 15, 4, 0.4], [11687, 2, 4, 0.38], [3495, 3, 10, 1.25], [1163, 3, 4, 1.16], [7324, 1, 4, 1.03], [2528, 29, 4, 0.72], [11425, 25, 4, 0.4], [1801, 1, 4, 0.86], [6935, 2, 214, 5.02], [141, 2, 121, 2.76], [589, 2, 121, 2.92], [2778, 2, 146, 2.18], [6936, 2, 214, 5.56], [11681, 2, 219, 5.84], [2327, 2, 117, 3.05], [362, 2, 93, 3.2], [8648, 2, 180, 5.72], [8650, 2, 179, 5.99], [305, 2, 51, 3.89], [326, 2, 61, 3.49], [2328, 2, 99, 3.76], [2775, 2, 146, 2.18], [8853, 2, 223, 6.0], [361, 2, 103, 3.28], [143, 2, 98, 3.43], [593, 2, 151, 3.1], [140, 2, 85, 2.04], [3840, 1, 161, 1.81], [523, 2, 103, 3.16], [21793, 1, 224, 4.07], [151, 1, 45, 2.85], [412, 1, 78, 2.04], [7036, 1, 119, 2.48], [21798, 1, 130, 1.81], [5165, 1, 32, 3.8], [145, 2, 142, 3.02], [12349, 1, 575, 5.05], [201, 3, 105, 4.45], [6952, 1, 125, 5.21], [6097, 80, 45, 6.0], [2055, 3, 444, 3.43], [345, 3, 198, 3.85], [10993, 2, 50, 2.26], [144, 2, 139, 2.02], [2057, 3, 444, 3.43], [3891, 1, 98, 3.13], [11770, 1, 209, 1.7], [998, 2, 159, 4.43], [2912, 1, 45, 2.6], [5165, 2, 357, 1.85], [3893, 1, 116, 2.27], [9372, 1, 216, 4.37], [12870, 1, 129, 2.84], [12343, 1, 575, 5.05], [1886, 2, 146, 1.81], [5208, 3, 530, 1.47], [7885, 4, 33, 2.07], [12351, 1, 575, 2.43], [6097, 29, 23, 6.0], [6098, 80, 50, 4.35], [2424, 80, 158, 4.01], [3334, 5, 168, 3.15], [11089, 1, 133, 3.34], [10149, 3, 819, 2.33], [12345, 1, 575, 5.05], [12344, 1, 482, 2.68], [1492, 1, 35, 1.93], [1519, 3, 1100, 2.83], [4032, 29, 90, 1.91], [3889, 1, 116, 2.49], [2912, 2, 359, 2.41], [12304, 1, 99, 3.73], [13028, 3, 135, 5.02]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 7, 0.97], [305, 2, 4, 0.75], [6935, 2, 8, 1.44], [2049, 3, 10, 0.22], [141, 2, 4, 0.39], [205, 2, 4, 0.31], [326, 2, 4, 0.47], [144, 2, 4, 0.49], [589, 2, 6, 0.2], [362, 2, 4, 1.32], [151, 1, 4, 0.46], [1776, 1, 5, 1.48], [146, 2, 4, 0.58], [143, 2, 4, 0.58], [206, 2, 4, 0.2], [1777, 1, 5, 0.93], [2328, 2, 5, 0.55], [8648, 2, 5, 0.77], [20252, 2, 4, 0.44], [6936, 2, 6, 1.17], [5151, 2, 4, 1.3], [8650, 2, 5, 1.15], [1007, 2, 5, 0.36], [2778, 2, 4, 0.2], [8677, 3, 5, 1.81], [76, 2, 4, 1.11], [10, 2, 5, 0.22], [8649, 2, 4, 1.15], [10149, 3, 17, 1.32], [2054, 3, 6, 0.58], [412, 1, 4, 0.91], [13028, 3, 5, 0.5], [361, 2, 4, 0.65], [413, 1, 4, 0.85], [7004, 1, 4, 0.4], [11404, 2, 4, 0.48], [7084, 3, 4, 1.38], [411, 2, 4, 0.23], [410, 1, 4, 0.36], [3478, 2, 4, 0.78], [308, 1, 4, 0.72], [167, 3, 5, 1.35], [5081, 2, 6, 0.2], [7005, 1, 4, 0.4], [3495, 3, 15, 1.31], [1124, 2, 5, 0.45], [432, 3, 4, 0.39], [9827, 3, 4, 0.2], [45, 2, 4, 1.12], [94, 4, 4, 0.51], [7036, 1, 4, 1.39], [3893, 1, 4, 0.53], [3889, 1, 4, 0.53], [168, 3, 5, 0.29], [10574, 3, 5, 0.43], [3891, 1, 4, 0.53], [2049, 1, 4, 0.8], [2336, 3, 6, 0.73], [12870, 1, 4, 2.58], [335, 3, 10, 1.09], [1504, 2, 6, 0.2], [6097, 29, 4, 2.11], [6097, 80, 4, 2.61], [998, 2, 4, 1.27], [214, 3, 9, 0.44], [11737, 2, 4, 0.66], [95, 3, 15, 0.31], [346, 1, 4, 0.56], [20927, 1, 4, 0.61], [6098, 29, 4, 2.27], [1490, 1, 5, 0.2], [79, 1, 4, 0.2], [5208, 3, 5, 0.54], [9069, 1, 5, 1.09], [22316, 3, 5, 0.49], [6098, 80, 4, 2.48], [8898, 3, 5, 2.17], [1070, 7, 10, 0.42], [14017, 3, 4, 0.67], [997, 2, 4, 1.04], [20498, 1, 5, 0.55], [346, 3, 5, 0.51], [13034, 3, 8, 1.01], [83, 2, 4, 0.44], [22554, 10, 9, 0.48], [1622, 1, 5, 0.2], [13260, 29, 4, 0.85], [7567, 3, 4, 1.37], [11116, 1, 4, 0.42], [8945, 3, 5, 1.06], [5811, 3, 4, 1.44], [22317, 3, 6, 0.26], [5946, 1, 4, 0.53], [5813, 3, 5, 1.08], [20498, 3, 6, 0.84], [5513, 2, 4, 0.52], [5209, 3, 4, 0.52], [12924, 1, 4, 0.2], [5086, 1, 6, 0.33], [995, 2, 4, 1.31], [996, 2, 4, 0.99], [33, 1, 4, 0.74], [974, 3, 4, 0.88], [972, 3, 6, 0.35], [229, 1, 4, 2.32], [1413, 15, 4, 0.45], [9691, 1, 4, 1.66], [35, 1, 4, 1.05], [8557, 3, 4, 0.2], [3049, 3, 4, 1.73], [20486, 3, 6, 0.75], [5584, 3, 4, 1.4], [8943, 3, 4, 0.37], [1703, 2, 4, 1.38], [13023, 3, 5, 1.48], [4076, 3, 4, 2.94], [2424, 80, 4, 1.7], [39, 1, 4, 0.8], [952, 4, 4, 2.23], [3900, 3, 4, 1.43], [8104, 1, 4, 0.39], [9081, 3, 7, 0.53], [11510, 3, 5, 0.72], [215, 4, 4, 3.32], [20486, 1, 4, 0.51], [34, 1, 4, 0.47], [972, 1, 4, 0.73], [114, 3, 4, 0.48], [6497, 1, 5, 1.0], [2854, 21, 10, 0.47], [3047, 3, 4, 1.0], [38, 1, 4, 0.47], [1414, 15, 4, 0.2], [20969, 3, 4, 1.11], [23611, 3, 4, 0.42], [8635, 3, 4, 0.57], [1339, 3, 12, 0.18], [8672, 2, 201, 4.82], [305, 2, 104, 3.39], [6935, 2, 243, 4.41], [2049, 3, 458, 2.26], [141, 2, 111, 2.62], [205, 2, 80, 2.23], [326, 2, 65, 2.88], [144, 2, 128, 1.59], [589, 2, 113, 1.83], [362, 2, 122, 3.19], [151, 1, 48, 2.74], [1776, 1, 90, 4.26], [146, 2, 108, 2.97], [143, 2, 106, 2.96], [206, 2, 80, 2.46], [1777, 1, 90, 3.63], [2328, 2, 108, 2.91], [8648, 2, 159, 4.42], [20252, 2, 81, 1.5], [6936, 2, 201, 4.37], [5151, 2, 18, 3.43], [8650, 2, 159, 5.07], [1007, 2, 236, 1.44], [2778, 2, 111, 2.96], [8677, 3, 208, 4.98], [76, 2, 77, 4.19], [8649, 2, 159, 4.76], [10149, 3, 609, 5.15], [2054, 3, 332, 4.02], [412, 1, 60, 3.57], [13028, 3, 105, 2.83], [361, 2, 134, 1.9], [413, 1, 62, 3.05], [7004, 1, 57, 2.6], [11404, 2, 91, 1.57], [7084, 3, 90, 3.52], [411, 2, 69, 2.76], [410, 1, 87, 2.58], [308, 1, 146, 3.09], [5081, 2, 135, 2.9], [7005, 1, 57, 2.6], [3495, 3, 679, 4.16], [1124, 2, 162, 1.64], [432, 3, 261, 2.69], [9827, 3, 63, 2.79], [45, 2, 77, 5.57], [94, 4, 85, 4.45], [7036, 1, 90, 4.38], [3893, 1, 108, 1.67], [3889, 1, 108, 1.67], [168, 3, 289, 3.37], [10574, 3, 437, 2.97], [3891, 1, 108, 1.67], [2049, 1, 12, 3.56], [2336, 3, 483, 3.17], [12870, 1, 98, 6.0], [335, 3, 1047, 4.78], [1504, 2, 145, 2.74], [6097, 29, 27, 5.7], [6097, 80, 48, 5.95], [998, 2, 196, 3.9], [214, 3, 565, 1.62], [11737, 2, 50, 2.3]]</t>
-  </si>
-  <si>
-    <t>[[305, 2, 7, 1.49], [326, 2, 11, 1.63], [589, 2, 12, 0.67], [143, 2, 7, 1.12], [205, 2, 7, 0.96], [2049, 3, 15, 2.57], [130, 1, 7, 1.81], [6935, 2, 18, 3.14], [75, 2, 11, 2.11], [144, 2, 7, 1.42], [12721, 2, 10, 1.69], [145, 2, 7, 1.0], [8915, 2, 12, 0.5], [7885, 4, 7, 0.77], [146, 2, 7, 1.0], [1776, 1, 7, 1.17], [2778, 2, 11, 1.07], [1777, 1, 7, 1.85], [151, 1, 7, 0.71], [206, 2, 9, 0.93], [20252, 2, 7, 0.85], [8648, 2, 11, 3.84], [6936, 2, 10, 2.57], [990, 2, 7, 1.83], [2328, 2, 9, 1.55], [7886, 4, 7, 0.87], [8650, 2, 11, 4.99], [141, 2, 9, 1.87], [74, 1, 7, 3.53], [83, 2, 7, 0.85], [2054, 3, 7, 1.04], [2057, 3, 7, 0.88], [7004, 1, 7, 0.71], [1492, 1, 7, 2.1], [2055, 3, 7, 0.81], [8649, 2, 11, 4.99], [345, 3, 9, 0.87], [21798, 1, 7, 0.96], [7005, 1, 7, 0.73], [7084, 3, 9, 3.68], [3889, 1, 7, 0.8], [10825, 21, 13, 2.03], [7887, 4, 7, 0.67], [33, 1, 9, 2.05], [61, 3, 7, 1.37], [21793, 1, 7, 4.02], [10149, 3, 21, 1.68], [94, 4, 9, 1.85], [432, 3, 7, 1.15], [7036, 1, 7, 2.24], [5081, 2, 7, 1.33], [12870, 1, 9, 5.0], [3478, 2, 9, 2.38], [167, 3, 7, 2.27], [308, 1, 7, 2.55], [11681, 2, 11, 4.33], [411, 2, 7, 0.71], [10, 2, 7, 1.31], [13028, 3, 7, 3.2], [9827, 3, 7, 0.53], [1504, 2, 7, 2.72], [201, 3, 9, 0.87], [3891, 1, 7, 2.38], [84, 2, 7, 3.04], [8677, 3, 9, 1.26], [168, 3, 9, 3.04], [35, 1, 7, 2.2], [1124, 2, 14, 0.93], [3893, 1, 7, 2.38], [79, 1, 7, 0.91], [5812, 3, 8, 1.9], [2336, 3, 9, 1.96], [13280, 1, 7, 1.08], [23, 1, 7, 2.78], [9760, 29, 7, 1.17], [1490, 1, 7, 0.67], [1243, 2, 7, 1.27], [11737, 2, 7, 1.03], [6158, 2, 8, 0.86], [5208, 3, 13, 1.12], [335, 3, 20, 0.7], [412, 1, 7, 2.54], [361, 2, 7, 2.12], [20927, 1, 7, 1.14], [45, 2, 7, 2.72], [214, 3, 15, 0.69], [25, 1, 7, 1.46], [1767, 25, 7, 1.14], [95, 3, 22, 0.85], [9069, 1, 7, 1.46], [10574, 3, 10, 1.28], [413, 1, 7, 2.06], [21269, 3, 7, 3.75], [3495, 3, 18, 2.25], [346, 3, 7, 0.99], [34, 1, 7, 1.65], [997, 2, 9, 2.24], [8898, 3, 7, 2.78], [11116, 1, 7, 1.08], [1766, 25, 7, 1.08], [5946, 1, 7, 2.23], [417, 2, 7, 2.12], [9691, 1, 7, 2.93], [1070, 7, 15, 0.85], [1413, 15, 7, 1.08], [14017, 3, 7, 1.75], [38, 1, 7, 1.9], [20498, 1, 9, 1.55], [9372, 1, 7, 3.6], [11954, 1, 7, 0.87], [974, 3, 7, 2.39], [5209, 3, 7, 0.71], [22317, 3, 9, 1.01], [7567, 3, 7, 0.79], [14037, 3, 11, 0.84], [972, 3, 8, 1.64], [5584, 3, 7, 3.74], [20498, 3, 8, 1.91], [9828, 3, 9, 0.76], [8945, 3, 8, 2.65], [5813, 3, 9, 3.74], [82, 2, 7, 1.88], [39, 1, 7, 1.14], [3048, 3, 7, 3.93], [1080, 3, 7, 1.59], [13034, 3, 8, 2.39], [24, 1, 7, 2.0], [955, 2, 7, 0.9], [1414, 15, 9, 0.72], [336, 15, 7, 0.98], [1767, 2, 9, 1.46], [10780, 10, 7, 3.58], [13260, 29, 7, 2.46], [4203, 1, 9, 1.06], [5812, 3, 510, 3.43], [2336, 3, 589, 2.71], [13280, 1, 320, 1.82], [23, 1, 96, 3.52], [9760, 29, 73, 1.92], [1490, 1, 42, 2.73], [1243, 2, 99, 2.01], [11737, 2, 49, 3.09], [6158, 2, 226, 2.91], [5208, 3, 192, 1.57], [335, 3, 1012, 2.3], [412, 1, 71, 4.11], [361, 2, 157, 2.86], [20927, 1, 81, 1.88], [45, 2, 94, 4.28], [214, 3, 665, 1.43], [25, 1, 96, 3.46], [1767, 25, 148, 3.15], [95, 3, 973, 3.04], [9069, 1, 124, 2.2], [10574, 3, 522, 2.02], [413, 1, 74, 3.61], [21269, 3, 225, 5.3], [3495, 3, 850, 3.93], [346, 3, 474, 2.55], [34, 1, 86, 3.45], [997, 2, 184, 3.79], [8898, 3, 243, 4.83], [11116, 1, 81, 1.82], [1766, 25, 161, 3.08], [5946, 1, 107, 3.53], [417, 2, 157, 2.86], [9691, 1, 64, 3.99], [1070, 7, 510, 2.89], [1413, 15, 101, 1.83], [14017, 3, 169, 3.96], [38, 1, 86, 3.45], [20498, 1, 85, 3.86], [9372, 1, 174, 4.9], [11954, 1, 171, 2.93], [974, 3, 127, 3.7], [5209, 3, 575, 1.47], [22317, 3, 243, 2.53], [7567, 3, 71, 1.53], [14037, 3, 350, 1.58], [972, 3, 510, 3.19], [5584, 3, 179, 5.29], [20498, 3, 450, 3.46], [9828, 3, 68, 2.44], [8945, 3, 598, 3.4], [5813, 3, 453, 4.48], [82, 2, 60, 2.62], [39, 1, 86, 2.69], [3048, 3, 209, 5.23], [1080, 3, 102, 3.14], [13034, 3, 453, 3.72], [24, 1, 86, 3.39], [955, 2, 84, 2.45], [1414, 15, 85, 2.22], [336, 15, 38, 1.43], [1767, 2, 27, 2.69], [10780, 10, 294, 5.14], [13260, 29, 56, 3.21], [4203, 1, 37, 2.61]]</t>
-  </si>
-  <si>
-    <t>[[2327, 2, 7, 1.0], [305, 2, 9, 1.32], [6935, 2, 11, 4.09], [2778, 2, 9, 1.18], [8915, 2, 8, 1.06], [144, 2, 7, 1.04], [143, 2, 7, 0.85], [2328, 2, 11, 1.39], [6936, 2, 7, 3.27], [8648, 2, 11, 3.48], [205, 2, 7, 0.74], [593, 2, 14, 1.03], [8650, 2, 7, 2.95], [145, 2, 7, 0.96], [146, 2, 7, 1.35], [326, 2, 7, 2.24], [5493, 2, 9, 0.74], [7036, 1, 11, 3.63], [2049, 3, 12, 0.73], [88, 10, 20, 2.34], [141, 2, 7, 0.72], [7004, 1, 11, 2.54], [1446, 2, 7, 1.5], [206, 2, 7, 1.7], [1124, 2, 7, 1.9], [9760, 29, 7, 1.24], [362, 2, 7, 1.0], [2055, 3, 7, 1.07], [2912, 1, 7, 1.75], [10993, 2, 9, 1.0], [12870, 1, 9, 3.23], [3893, 1, 7, 0.71], [5165, 1, 7, 1.66], [9372, 1, 7, 3.26], [7886, 4, 7, 0.8], [2054, 3, 7, 2.44], [3889, 1, 7, 1.38], [2050, 3, 7, 1.61], [1622, 1, 9, 0.59], [3891, 1, 7, 0.76], [21793, 1, 7, 1.22], [7885, 4, 7, 0.94], [7573, 1, 16, 4.3], [10, 2, 7, 1.14], [5208, 3, 11, 1.04], [10149, 3, 21, 2.82], [75, 2, 7, 2.18], [20927, 1, 9, 2.5], [997, 2, 9, 2.5], [3, 2, 9, 1.58], [11234, 2, 9, 1.55], [5165, 2, 8, 1.51], [12721, 2, 7, 2.81], [998, 2, 9, 1.56], [35, 1, 7, 2.96], [1886, 2, 9, 0.86], [972, 3, 10, 1.66], [22247, 2, 7, 2.27], [9491, 21, 32, 0.95], [996, 2, 9, 2.88], [955, 2, 7, 1.0], [33, 1, 7, 2.27], [83, 2, 9, 1.73], [229, 1, 7, 2.5], [7887, 4, 9, 2.05], [6158, 2, 7, 1.56], [2912, 2, 12, 3.02], [76, 2, 7, 1.6], [413, 1, 7, 3.14], [2424, 80, 7, 2.78], [34, 1, 7, 2.54], [13028, 3, 7, 2.62], [38, 1, 7, 2.66], [5209, 3, 7, 2.17], [13928, 1, 7, 1.83], [8676, 2, 7, 3.15], [8898, 3, 7, 4.91], [418, 2, 7, 1.25], [12212, 29, 7, 1.15], [3495, 3, 18, 2.49], [11952, 1, 7, 2.68], [39, 1, 7, 2.6], [9690, 1, 7, 0.9], [1414, 15, 7, 1.0], [5946, 1, 7, 1.02], [11490, 1, 7, 1.37], [2424, 29, 7, 0.89], [9691, 1, 7, 1.87], [411, 2, 7, 1.64], [415, 1, 7, 1.06], [1703, 2, 7, 2.08], [10407, 10, 12, 3.52], [7567, 3, 7, 2.56], [23961, 3, 7, 4.1], [11953, 1, 7, 0.87], [11772, 1, 7, 4.14], [13023, 3, 10, 1.41], [22316, 3, 7, 1.16], [12764, 2, 10, 1.76], [214, 3, 15, 0.76], [13928, 2, 7, 2.72], [74, 1, 7, 5.0], [21269, 3, 7, 2.82], [10410, 10, 15, 3.8], [13893, 2, 7, 4.55], [1163, 3, 7, 0.89], [972, 1, 7, 1.61], [2331, 1, 7, 3.07], [410, 1, 7, 1.79], [1274, 1, 7, 1.3], [5164, 1, 7, 1.73], [1523, 1, 7, 0.81], [24257, 1, 7, 1.0], [10408, 10, 8, 3.87], [1492, 1, 7, 0.87], [3430, 15, 7, 2.31], [6097, 80, 7, 1.94], [2438, 2, 8, 3.45], [13034, 3, 7, 2.6], [6097, 29, 7, 2.31], [3047, 3, 7, 2.68], [1243, 2, 7, 2.48], [10780, 10, 7, 3.18], [71, 15, 7, 0.75], [6805, 1, 7, 0.97], [1080, 3, 7, 2.78], [2436, 4, 7, 1.36], [1277, 1, 7, 1.14], [7704, 2, 7, 3.16], [7705, 2, 7, 3.16], [3429, 15, 7, 0.97], [6497, 1, 7, 2.2], [8659, 1, 7, 2.04], [19931, 1, 7, 2.43], [20486, 3, 8, 2.3], [13028, 3, 134, 3.45], [38, 1, 83, 3.92], [13928, 1, 36, 3.67], [8676, 2, 263, 3.98], [8898, 3, 219, 6.0], [418, 2, 131, 2.09], [12212, 29, 107, 2.78], [3495, 3, 890, 3.31], [11952, 1, 182, 3.52], [39, 1, 83, 3.89], [9690, 1, 59, 2.13], [1414, 15, 58, 1.76], [5946, 1, 116, 1.86], [11490, 1, 97, 2.77], [2424, 29, 31, 1.73], [9691, 1, 68, 3.27], [411, 2, 100, 2.48], [415, 1, 80, 1.89], [1703, 2, 144, 3.48], [10407, 10, 891, 5.62], [7567, 3, 63, 3.96], [23961, 3, 260, 5.56], [11953, 1, 186, 1.71], [11772, 1, 194, 4.98], [13023, 3, 531, 3.29], [22316, 3, 292, 2.0], [12764, 2, 657, 3.62], [214, 3, 607, 1.59], [13928, 2, 21, 3.56], [74, 1, 173, 6.0], [21269, 3, 258, 4.46], [10410, 10, 891, 4.95], [13893, 2, 247, 5.38], [1163, 3, 80, 1.38], [972, 1, 92, 2.45], [2331, 1, 107, 3.9], [410, 1, 48, 2.5], [1274, 1, 76, 2.14], [5164, 1, 44, 2.57], [1523, 1, 44, 1.64], [24257, 1, 131, 1.84], [10408, 10, 675, 5.51], [1492, 1, 34, 2.75], [3430, 15, 62, 3.71], [6097, 80, 61, 3.34], [2438, 2, 553, 5.1], [13034, 3, 520, 4.24], [6097, 29, 32, 3.15], [3047, 3, 238, 4.34], [1243, 2, 87, 4.11], [10780, 10, 331, 5.07], [71, 15, 52, 1.23], [6805, 1, 419, 1.81], [1080, 3, 117, 3.62], [2436, 4, 104, 2.96], [1277, 1, 177, 1.97], [7704, 2, 162, 4.0], [7705, 2, 162, 4.0], [3429, 15, 25, 1.68], [6497, 1, 34, 3.04], [8659, 1, 111, 2.88], [19931, 1, 377, 3.26], [20486, 3, 543, 3.14]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 10, 2.95], [11685, 2, 7, 3.6], [326, 2, 7, 2.44], [8648, 2, 9, 2.71], [589, 2, 8, 0.61], [2327, 2, 7, 0.98], [593, 2, 11, 1.26], [11681, 2, 9, 3.34], [305, 2, 7, 0.98], [143, 2, 9, 1.88], [141, 2, 7, 1.83], [8650, 2, 7, 2.25], [2778, 2, 7, 1.43], [6936, 2, 11, 4.58], [2049, 3, 17, 0.71], [146, 2, 7, 2.06], [88, 10, 18, 0.73], [7004, 1, 7, 1.17], [615, 2, 9, 1.53], [7036, 1, 7, 2.85], [145, 2, 7, 2.56], [362, 2, 7, 0.96], [8853, 2, 7, 2.37], [2055, 3, 7, 4.16], [10993, 2, 7, 1.21], [11737, 2, 7, 1.76], [3840, 1, 7, 0.73], [159, 3, 12, 0.8], [523, 2, 9, 1.31], [12870, 1, 7, 3.69], [2057, 3, 7, 3.77], [3889, 1, 7, 1.16], [10574, 3, 8, 0.94], [13280, 1, 7, 2.58], [7084, 3, 7, 1.6], [20927, 1, 7, 1.55], [2054, 3, 7, 3.49], [997, 2, 7, 1.75], [3, 2, 7, 1.02], [3982, 3, 17, 2.58], [21793, 1, 7, 2.17], [10, 2, 7, 0.75], [3891, 1, 7, 1.02], [61, 3, 7, 2.37], [998, 2, 7, 1.33], [11739, 2, 7, 1.41], [7885, 4, 9, 0.7], [6158, 2, 9, 1.24], [8672, 2, 11, 2.68], [5165, 1, 7, 1.29], [972, 3, 9, 3.54], [5165, 2, 8, 1.16], [346, 3, 7, 1.68], [3980, 4, 7, 2.37], [9372, 1, 7, 2.95], [411, 2, 7, 1.25], [2912, 1, 7, 1.75], [956, 2, 7, 0.75], [10388, 2, 7, 2.56], [214, 3, 15, 0.69], [9491, 21, 20, 0.87], [3981, 3, 22, 2.14], [346, 1, 7, 1.91], [1492, 1, 7, 0.89], [995, 2, 7, 2.23], [7573, 1, 11, 3.86], [33, 1, 7, 3.41], [22316, 3, 7, 0.98], [7886, 4, 9, 0.94], [13928, 1, 7, 2.49], [10386, 2, 7, 0.69], [336, 15, 7, 1.28], [161, 3, 8, 4.88], [35, 1, 7, 3.29], [7567, 3, 7, 2.7], [11770, 1, 7, 3.36], [2912, 2, 8, 3.02], [308, 1, 7, 3.55], [10631, 2, 7, 2.44], [11490, 1, 7, 1.54], [229, 1, 7, 2.41], [11953, 1, 7, 1.15], [83, 2, 7, 1.41], [22317, 3, 7, 1.67], [10780, 10, 7, 3.1], [414, 1, 7, 1.1], [10407, 10, 10, 3.29], [10149, 3, 21, 2.88], [10410, 10, 10, 3.21], [12271, 2, 7, 3.39], [972, 1, 9, 3.54], [6497, 1, 7, 0.9], [1413, 15, 7, 1.12], [23611, 3, 9, 0.72], [11767, 1, 7, 0.83], [345, 3, 7, 1.46], [8104, 1, 7, 0.73], [37, 1, 7, 1.75], [3478, 2, 7, 1.24], [74, 1, 7, 5.0], [39, 1, 7, 1.04], [10387, 2, 7, 1.96], [9971, 2, 7, 3.0], [4076, 3, 7, 2.29], [3048, 3, 7, 0.92], [152, 21, 7, 1.14], [34, 1, 7, 1.31], [24257, 1, 7, 2.73], [2331, 1, 7, 3.76], [82, 2, 7, 0.82], [20498, 3, 10, 2.46], [4001, 3, 14, 2.74], [4253, 1, 7, 1.41], [11510, 3, 8, 2.0], [45, 2, 7, 5.0], [9, 1, 7, 0.69], [416, 1, 7, 1.1], [215, 4, 7, 3.25], [12338, 29, 7, 0.75], [10936, 2, 7, 1.81], [12764, 2, 8, 1.71], [9965, 2, 7, 4.18], [202, 2, 7, 0.73], [1523, 1, 7, 3.0], [1895, 3, 7, 1.42], [105, 3, 7, 0.98], [12858, 1, 7, 1.17], [1080, 3, 7, 0.89], [2805, 137, 13, 1.88], [11489, 1, 7, 0.75], [8635, 3, 7, 2.86], [7705, 2, 7, 2.59], [3047, 3, 7, 2.68], [10093, 3, 15, 1.65], [7886, 4, 35, 1.4], [13928, 1, 44, 3.29], [10386, 2, 210, 1.49], [336, 15, 103, 2.08], [161, 3, 687, 5.68], [35, 1, 53, 3.97], [7567, 3, 67, 3.49], [11770, 1, 175, 4.15], [308, 1, 151, 4.35], [10631, 2, 204, 3.24], [11490, 1, 85, 2.88], [229, 1, 65, 3.21], [11953, 1, 159, 2.59], [83, 2, 51, 2.21], [22317, 3, 257, 3.13], [10780, 10, 355, 3.9], [414, 1, 82, 1.9], [10407, 10, 1115, 4.08], [10149, 3, 680, 4.35], [10410, 10, 1115, 4.0], [12271, 2, 51, 4.36], [972, 1, 59, 4.35], [6497, 1, 36, 1.7], [1413, 15, 81, 2.27], [23611, 3, 274, 2.5], [11767, 1, 157, 1.62], [345, 3, 233, 2.67], [8104, 1, 50, 1.18], [37, 1, 87, 2.97], [3478, 2, 73, 2.04], [74, 1, 189, 6.0], [39, 1, 106, 1.84], [10387, 2, 210, 2.76], [9971, 2, 260, 3.8], [4076, 3, 157, 3.34], [3048, 3, 260, 1.72], [34, 1, 87, 2.74], [24257, 1, 131, 3.53], [2331, 1, 109, 4.56], [82, 2, 58, 1.62], [20498, 3, 455, 4.42], [4001, 3, 616, 4.19], [4253, 1, 164, 2.21], [11510, 3, 563, 2.8], [45, 2, 103, 6.0], [9, 1, 33, 1.49], [416, 1, 82, 1.9], [215, 4, 36, 4.04], [12338, 29, 51, 1.55], [10936, 2, 127, 2.61], [12764, 2, 581, 3.17], [9965, 2, 260, 4.97], [202, 2, 71, 1.53], [1523, 1, 46, 3.8], [1895, 3, 238, 3.11], [105, 3, 192, 2.67], [12858, 1, 455, 2.61], [1080, 3, 123, 1.69], [2805, 137, 176, 2.68], [11489, 1, 105, 1.55], [8635, 3, 262, 4.54], [7705, 2, 169, 3.39], [3047, 3, 257, 3.48], [10093, 3, 788, 2.46]]</t>
-  </si>
-  <si>
-    <t>[[2049, 3, 16, 0.8], [326, 2, 8, 1.03], [6935, 2, 23, 3.05], [362, 2, 9, 2.06], [589, 2, 10, 0.5], [141, 2, 7, 1.04], [75, 2, 11, 2.24], [1776, 1, 7, 1.12], [130, 1, 7, 1.66], [8672, 2, 15, 2.16], [20252, 2, 7, 0.85], [7886, 4, 7, 1.01], [2778, 2, 8, 0.81], [305, 2, 7, 0.92], [1777, 1, 7, 2.22], [6936, 2, 10, 2.79], [593, 2, 14, 0.86], [11681, 2, 10, 5.0], [8648, 2, 9, 3.21], [206, 2, 7, 0.96], [151, 1, 7, 0.85], [88, 10, 17, 1.69], [2328, 2, 7, 0.94], [83, 2, 7, 0.96], [8650, 2, 11, 3.25], [5151, 2, 7, 2.21], [2050, 3, 7, 1.23], [412, 1, 7, 2.42], [361, 2, 7, 0.94], [144, 2, 7, 1.44], [2991, 3, 7, 4.18], [21798, 1, 7, 0.96], [57, 1, 9, 0.68], [10149, 3, 25, 3.26], [76, 2, 11, 2.6], [21793, 1, 7, 3.62], [2054, 3, 9, 3.24], [146, 2, 9, 2.43], [3478, 2, 7, 0.87], [45, 2, 7, 2.65], [143, 2, 7, 1.34], [7004, 1, 7, 0.9], [2057, 3, 7, 3.23], [167, 3, 7, 2.25], [168, 3, 7, 1.38], [74, 1, 7, 2.52], [346, 1, 7, 0.74], [84, 2, 7, 3.03], [3495, 3, 21, 1.64], [335, 3, 22, 3.87], [7036, 1, 7, 3.77], [432, 3, 7, 1.61], [5081, 2, 7, 0.84], [214, 3, 15, 0.78], [10, 2, 14, 2.41], [13028, 3, 7, 1.61], [7887, 4, 7, 0.77], [11404, 2, 7, 1.31], [8649, 2, 9, 2.97], [12870, 1, 7, 4.97], [410, 1, 7, 1.23], [79, 1, 7, 0.73], [142, 2, 7, 0.98], [145, 2, 7, 0.83], [5208, 3, 16, 1.31], [3889, 1, 7, 2.38], [3893, 1, 7, 1.67], [1492, 1, 7, 1.2], [5812, 3, 8, 2.16], [1504, 2, 9, 0.89], [94, 4, 7, 2.79], [9827, 3, 7, 0.86], [411, 2, 7, 1.46], [7005, 1, 7, 1.19], [13260, 29, 7, 1.64], [3891, 1, 7, 1.3], [1490, 1, 7, 1.35], [998, 2, 7, 2.66], [10574, 3, 9, 2.32], [21269, 3, 7, 4.99], [7567, 3, 7, 3.13], [9069, 1, 7, 2.53], [5086, 1, 9, 2.04], [11954, 1, 7, 0.92], [2878, 1, 7, 1.63], [1243, 2, 7, 2.18], [997, 2, 7, 2.64], [9691, 1, 7, 3.18], [20927, 1, 7, 1.75], [5209, 3, 7, 0.92], [1703, 2, 7, 3.38], [11914, 1, 9, 1.27], [1124, 2, 11, 0.76], [856, 1, 7, 0.92], [5660, 2, 7, 1.94], [5584, 3, 7, 3.61], [1070, 7, 13, 1.15], [8274, 3, 7, 1.76], [11811, 1, 9, 2.48], [1519, 3, 26, 0.67], [23961, 3, 7, 4.68], [8898, 3, 7, 5.0], [952, 4, 7, 5.0], [1091, 1, 7, 1.1], [22317, 3, 8, 0.9], [9081, 3, 11, 3.64], [24, 1, 7, 2.51], [5513, 2, 7, 1.0], [13034, 3, 10, 3.0], [12661, 1, 7, 4.32], [336, 15, 7, 0.8], [11767, 1, 7, 0.9], [1413, 15, 7, 1.44], [20498, 1, 7, 4.0], [6097, 80, 7, 2.16], [9760, 29, 9, 0.87], [9082, 3, 21, 1.17], [8945, 3, 10, 4.45], [4203, 1, 7, 1.27], [10529, 29, 7, 2.85], [1163, 3, 9, 1.11], [6097, 29, 9, 2.83], [2109, 3, 18, 0.77], [995, 2, 7, 4.69], [82, 2, 7, 0.67], [20498, 3, 8, 3.52], [11769, 1, 7, 0.9], [972, 3, 8, 1.2], [9372, 1, 7, 3.6], [6098, 80, 7, 1.73], [2104, 3, 10, 2.53], [5813, 3, 7, 2.12], [8635, 3, 7, 1.16], [10780, 10, 7, 4.1], [34, 1, 7, 1.23], [1492, 1, 27, 2.61], [5812, 3, 414, 4.04], [1504, 2, 145, 2.79], [94, 4, 107, 3.44], [9827, 3, 63, 2.76], [411, 2, 80, 2.23], [7005, 1, 50, 2.22], [13260, 29, 52, 2.75], [3891, 1, 89, 3.27], [1490, 1, 36, 2.76], [998, 2, 170, 4.82], [10574, 3, 437, 2.97], [21269, 3, 207, 6.0], [7567, 3, 60, 3.78], [5086, 1, 130, 3.94], [11954, 1, 172, 1.57], [2878, 1, 57, 3.04], [1243, 2, 85, 2.83], [997, 2, 170, 3.29], [9691, 1, 54, 4.56], [5209, 3, 415, 2.6], [1703, 2, 149, 4.53], [11914, 1, 62, 3.42], [1124, 2, 155, 2.32], [856, 1, 30, 1.57], [5660, 2, 125, 3.84], [5584, 3, 178, 5.02], [1070, 7, 421, 2.57], [11811, 1, 375, 3.32], [1519, 3, 1182, 2.56], [23961, 3, 243, 5.33], [8898, 3, 199, 6.0], [952, 4, 52, 6.0], [1091, 1, 34, 2.68], [22317, 3, 262, 2.31], [9081, 3, 324, 5.55], [24, 1, 80, 3.67], [5513, 2, 69, 1.65], [13034, 3, 414, 4.4], [12661, 1, 58, 5.34], [336, 15, 81, 2.71], [11767, 1, 142, 1.55], [1413, 15, 63, 2.47], [20498, 1, 85, 4.65], [6097, 80, 60, 2.81], [9760, 29, 60, 2.28], [9082, 3, 1760, 3.17], [8945, 3, 199, 5.41], [4203, 1, 41, 2.43], [10529, 29, 37, 4.0], [6097, 29, 30, 4.49], [2109, 3, 390, 2.28], [995, 2, 204, 5.34], [82, 2, 53, 1.32], [20498, 3, 509, 4.16], [11769, 1, 142, 1.55], [972, 3, 516, 1.85], [9372, 1, 198, 4.25], [6098, 80, 66, 2.38], [2104, 3, 276, 3.64], [5813, 3, 509, 2.76], [10780, 10, 321, 4.74], [34, 1, 97, 1.88]]</t>
-  </si>
-  <si>
-    <t>[[589, 2, 8, 0.87], [88, 10, 24, 1.34], [8915, 2, 10, 0.81], [2327, 2, 7, 1.0], [6935, 2, 11, 3.9], [2778, 2, 7, 0.55], [305, 2, 7, 1.07], [2328, 2, 9, 1.46], [615, 2, 11, 2.25], [5493, 2, 9, 0.74], [616, 2, 7, 1.06], [326, 2, 9, 3.02], [6936, 2, 7, 3.27], [8650, 2, 9, 4.02], [1446, 2, 7, 1.57], [7004, 1, 11, 2.54], [143, 2, 7, 2.29], [144, 2, 7, 2.25], [593, 2, 14, 1.23], [10, 2, 7, 2.55], [5491, 2, 7, 0.98], [7036, 1, 11, 3.63], [3893, 1, 9, 0.96], [1124, 2, 7, 1.9], [146, 2, 7, 2.06], [7885, 4, 7, 0.94], [7886, 4, 7, 1.05], [3891, 1, 9, 1.01], [75, 2, 7, 2.64], [362, 2, 7, 2.65], [5208, 3, 11, 1.04], [21793, 1, 7, 1.22], [3889, 1, 7, 1.88], [2054, 3, 9, 1.85], [3980, 4, 8, 2.38], [7084, 3, 7, 2.54], [12870, 1, 7, 3.72], [2050, 3, 9, 1.11], [145, 2, 7, 2.41], [5165, 1, 7, 1.66], [10149, 3, 21, 2.59], [13028, 3, 7, 2.62], [8672, 2, 11, 3.11], [2912, 1, 7, 2.33], [998, 2, 7, 1.5], [20927, 1, 7, 2.54], [9760, 29, 7, 0.97], [997, 2, 7, 2.24], [1886, 2, 7, 0.85], [2436, 4, 7, 1.36], [3, 2, 9, 1.58], [7887, 4, 7, 2.05], [972, 3, 12, 1.52], [214, 3, 15, 0.76], [6158, 2, 7, 1.56], [2424, 80, 7, 2.78], [229, 1, 7, 1.75], [955, 2, 7, 1.0], [346, 3, 7, 1.31], [5076, 1, 7, 1.95], [3495, 3, 14, 1.61], [74, 1, 7, 5.0], [5165, 2, 8, 1.51], [11953, 1, 7, 0.87], [996, 2, 7, 1.96], [11770, 1, 7, 0.96], [12721, 2, 7, 2.18], [9491, 21, 32, 0.95], [22316, 3, 7, 1.16], [1492, 1, 7, 0.97], [7573, 1, 16, 4.3], [9372, 1, 7, 3.26], [11772, 1, 9, 0.76], [2423, 80, 9, 3.54], [2912, 2, 12, 3.02], [2438, 2, 8, 3.32], [3975, 4, 7, 2.76], [11952, 1, 7, 2.68], [6497, 1, 7, 2.2], [5584, 3, 7, 5.0], [346, 1, 7, 2.81], [5209, 3, 9, 1.29], [5434, 1, 7, 2.08], [24257, 1, 7, 0.92], [823, 1, 7, 2.33], [9082, 3, 32, 3.08], [335, 3, 15, 3.87], [10407, 10, 12, 3.52], [1622, 1, 7, 0.94], [8898, 3, 7, 5.0], [2424, 29, 7, 0.89], [12764, 2, 23, 1.61], [8676, 2, 7, 3.15], [6496, 1, 7, 2.59], [3900, 3, 7, 2.45], [5946, 1, 7, 1.02], [11490, 1, 7, 0.92], [33, 1, 7, 1.27], [10388, 2, 7, 3.31], [2805, 137, 7, 2.41], [1339, 3, 16, 0.66], [7567, 3, 7, 2.56], [972, 1, 7, 1.61], [1703, 2, 7, 1.39], [13893, 2, 7, 4.55], [6805, 1, 9, 0.97], [6097, 80, 7, 2.16], [22247, 2, 7, 2.27], [2104, 3, 15, 2.33], [1163, 3, 7, 0.89], [11814, 1, 7, 0.92], [1414, 15, 7, 1.0], [8635, 3, 7, 2.25], [38, 1, 7, 1.75], [9784, 1, 7, 1.12], [1895, 3, 7, 4.16], [1274, 1, 7, 1.26], [95, 3, 22, 1.12], [11116, 1, 7, 1.08], [8283, 2, 8, 2.14], [788, 2, 7, 1.02], [8104, 1, 7, 1.79], [10386, 2, 7, 3.17], [12212, 29, 7, 1.0], [8274, 3, 7, 2.18], [114, 3, 7, 2.46], [9690, 1, 7, 0.9], [8659, 1, 7, 1.64], [19931, 1, 7, 2.43], [76, 2, 7, 2.69], [9065, 2, 7, 1.39], [4232, 80, 7, 1.98], [418, 2, 7, 1.25], [12979, 25, 12, 1.1], [12501, 1, 7, 2.39], [22316, 3, 292, 2.0], [1492, 1, 28, 3.35], [7573, 1, 276, 5.69], [9372, 1, 211, 4.09], [11772, 1, 164, 3.22], [2423, 80, 136, 5.38], [2438, 2, 553, 5.1], [3975, 4, 426, 4.36], [11952, 1, 182, 3.52], [6497, 1, 34, 3.04], [5584, 3, 218, 5.85], [346, 1, 139, 3.65], [5209, 3, 522, 2.12], [5434, 1, 44, 3.48], [24257, 1, 111, 2.15], [823, 1, 36, 4.21], [9082, 3, 2263, 3.92], [335, 3, 1181, 4.7], [10407, 10, 891, 5.62], [1622, 1, 100, 1.78], [8898, 3, 261, 6.0], [2424, 29, 31, 1.73], [12764, 2, 550, 3.67], [8676, 2, 263, 3.98], [6496, 1, 37, 3.42], [5946, 1, 116, 1.86], [11490, 1, 100, 1.76], [33, 1, 103, 2.1], [10388, 2, 202, 4.15], [2805, 137, 167, 3.24], [1339, 3, 1621, 1.49], [7567, 3, 63, 3.96], [972, 1, 92, 2.45], [1703, 2, 151, 2.23], [13893, 2, 247, 5.38], [6805, 1, 401, 2.84], [6097, 80, 64, 2.99], [22247, 2, 261, 3.11], [2104, 3, 308, 3.17], [1163, 3, 80, 1.38], [11814, 1, 207, 1.76], [1414, 15, 58, 1.76], [38, 1, 99, 3.15], [9784, 1, 67, 1.96], [1895, 3, 264, 6.0], [1274, 1, 73, 3.14], [95, 3, 999, 2.69], [11116, 1, 74, 1.92], [8283, 2, 433, 2.96], [788, 2, 17, 1.5], [8104, 1, 189, 2.63], [10386, 2, 202, 4.0], [12212, 29, 111, 1.84], [114, 3, 215, 3.83], [9690, 1, 59, 2.13], [8659, 1, 107, 3.52], [19931, 1, 377, 3.26], [76, 2, 101, 3.52], [9065, 2, 278, 2.23], [4232, 80, 137, 2.82], [418, 2, 131, 2.09], [12979, 25, 610, 1.93], [12501, 1, 274, 3.23]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 10, 2.95], [305, 2, 7, 0.98], [615, 2, 9, 0.92], [2778, 2, 9, 1.07], [205, 2, 9, 0.98], [5493, 2, 7, 1.0], [6936, 2, 9, 3.69], [616, 2, 7, 0.9], [88, 10, 14, 0.73], [2049, 3, 17, 0.71], [144, 2, 7, 2.84], [8648, 2, 9, 2.71], [326, 2, 7, 1.94], [589, 2, 8, 0.61], [11681, 2, 9, 3.84], [7036, 1, 7, 2.37], [8650, 2, 9, 2.48], [593, 2, 11, 1.29], [2327, 2, 7, 0.98], [141, 2, 7, 1.83], [206, 2, 7, 1.25], [7004, 1, 7, 1.17], [3840, 1, 7, 0.73], [3891, 1, 7, 1.02], [2050, 3, 7, 3.3], [146, 2, 7, 2.31], [3980, 4, 7, 2.37], [2055, 3, 7, 3.41], [143, 2, 7, 1.23], [3889, 1, 7, 1.16], [10, 2, 7, 0.75], [7885, 4, 7, 1.02], [2054, 3, 7, 3.66], [7886, 4, 7, 1.25], [8672, 2, 11, 2.68], [12870, 1, 7, 3.96], [10993, 2, 7, 1.21], [2057, 3, 7, 3.52], [5165, 1, 7, 1.29], [7084, 3, 7, 1.69], [145, 2, 7, 2.23], [21793, 1, 7, 2.17], [523, 2, 7, 1.5], [159, 3, 8, 0.66], [7005, 1, 7, 1.01], [3981, 3, 21, 2.47], [3982, 3, 17, 2.58], [142, 2, 7, 1.25], [20927, 1, 7, 2.25], [33, 1, 11, 3.41], [956, 2, 7, 0.75], [997, 2, 9, 4.11], [6158, 2, 11, 2.0], [214, 3, 14, 0.74], [7887, 4, 7, 2.05], [5165, 2, 8, 1.16], [22316, 3, 7, 1.23], [2912, 1, 7, 1.75], [11953, 1, 7, 1.15], [35, 1, 11, 3.32], [229, 1, 7, 2.41], [998, 2, 9, 4.07], [346, 3, 7, 1.53], [82, 2, 7, 0.82], [6497, 1, 7, 0.9], [389, 4, 7, 3.4], [996, 2, 9, 3.33], [5946, 1, 7, 1.02], [1492, 1, 7, 0.89], [972, 3, 11, 3.54], [7567, 3, 11, 3.69], [11767, 1, 7, 0.83], [192, 3, 22, 3.37], [11490, 1, 7, 0.92], [6496, 1, 7, 1.59], [4176, 4, 7, 3.49], [74, 1, 7, 4.19], [411, 2, 7, 1.25], [1413, 15, 7, 1.12], [22317, 3, 7, 1.42], [2104, 3, 12, 0.7], [4253, 1, 7, 1.41], [2912, 2, 8, 1.56], [8677, 3, 7, 2.82], [2436, 4, 7, 0.85], [336, 15, 7, 1.53], [39, 1, 7, 1.79], [12212, 29, 7, 0.94], [37, 1, 7, 1.52], [201, 3, 9, 2.36], [345, 3, 7, 1.46], [11085, 2, 8, 3.16], [1274, 1, 7, 1.41], [1277, 1, 7, 1.14], [13023, 3, 7, 2.44], [21269, 3, 7, 5.0], [6494, 1, 7, 0.87], [12271, 2, 7, 2.76], [8676, 2, 7, 1.94], [22247, 2, 9, 3.44], [3979, 3, 8, 2.31], [3, 2, 7, 2.1], [823, 1, 7, 1.26], [10408, 10, 10, 3.19], [36, 1, 7, 1.75], [10388, 2, 7, 2.51], [9784, 1, 7, 1.39], [10631, 2, 9, 3.46], [2805, 137, 13, 1.88], [9, 1, 7, 0.69], [10936, 2, 7, 1.81], [202, 2, 7, 0.73], [1414, 15, 7, 1.0], [11489, 1, 7, 0.75], [8675, 2, 7, 2.91], [3048, 3, 7, 2.25], [161, 3, 8, 4.88], [13928, 1, 7, 2.49], [346, 1, 7, 1.72], [9372, 1, 7, 2.95], [12764, 2, 8, 1.46], [12225, 1, 7, 2.51], [11814, 1, 7, 0.92], [13280, 1, 7, 2.58], [10386, 2, 7, 0.69], [10407, 10, 10, 3.29], [4076, 3, 7, 2.29], [8898, 3, 7, 2.27], [79, 1, 7, 0.92], [2878, 1, 9, 0.97], [11089, 1, 7, 1.95], [13035, 3, 7, 2.54], [491, 10, 10, 1.82], [3576, 25, 7, 1.0], [23611, 3, 9, 0.99], [972, 1, 7, 1.51], [11767, 1, 157, 1.62], [192, 3, 1107, 5.01], [11490, 1, 105, 1.72], [6496, 1, 32, 2.75], [4176, 4, 391, 4.95], [74, 1, 134, 4.98], [411, 2, 105, 2.05], [1413, 15, 81, 2.27], [22317, 3, 257, 3.13], [2104, 3, 316, 1.49], [4253, 1, 164, 2.21], [2912, 2, 368, 2.35], [8677, 3, 241, 4.26], [2436, 4, 112, 1.65], [336, 15, 84, 2.97], [39, 1, 87, 3.49], [12212, 29, 115, 1.74], [37, 1, 87, 2.97], [201, 3, 233, 4.06], [345, 3, 233, 2.67], [11085, 2, 435, 4.89], [1274, 1, 78, 2.21], [1277, 1, 183, 1.94], [13023, 3, 563, 3.24], [21269, 3, 239, 6.0], [6494, 1, 41, 2.56], [12271, 2, 61, 3.55], [8676, 2, 273, 2.74], [22247, 2, 231, 4.85], [3979, 3, 756, 3.11], [3, 2, 96, 3.55], [823, 1, 38, 2.06], [10408, 10, 596, 4.91], [36, 1, 87, 2.97], [10388, 2, 178, 4.46], [9784, 1, 69, 2.19], [2805, 137, 176, 2.68], [9, 1, 33, 1.49], [10936, 2, 127, 2.61], [202, 2, 71, 1.53], [1414, 15, 84, 1.78], [11489, 1, 105, 1.55], [8675, 2, 273, 3.71], [3048, 3, 211, 3.47], [161, 3, 687, 5.68], [13928, 1, 44, 3.29], [346, 1, 121, 2.76], [9372, 1, 219, 3.75], [12764, 2, 581, 3.17], [12225, 1, 156, 3.31], [11814, 1, 176, 2.62], [13280, 1, 303, 3.38], [10386, 2, 210, 1.49], [10407, 10, 1115, 4.08], [4076, 3, 191, 3.09], [8898, 3, 265, 3.07], [79, 1, 46, 1.72], [2878, 1, 64, 2.45], [11089, 1, 162, 2.75], [13035, 3, 287, 3.34], [491, 10, 343, 3.77], [3576, 25, 97, 1.8], [23611, 3, 333, 1.79], [972, 1, 94, 2.3]]</t>
-  </si>
-  <si>
-    <t>[[141, 2, 9, 0.88], [2328, 2, 11, 1.85], [8650, 2, 7, 2.38], [5491, 2, 11, 0.65], [2327, 2, 11, 1.82], [5493, 2, 7, 1.03], [589, 2, 9, 1.2], [8672, 2, 15, 2.15], [326, 2, 7, 2.64], [6935, 2, 23, 4.24], [205, 2, 7, 0.69], [206, 2, 7, 0.77], [11838, 2, 11, 1.02], [12721, 2, 11, 1.45], [6936, 2, 7, 2.89], [8915, 2, 7, 1.21], [2049, 3, 63, 2.91], [2778, 2, 13, 1.59], [1446, 2, 9, 0.74], [8676, 2, 7, 1.0], [305, 2, 7, 2.14], [615, 2, 7, 0.9], [593, 2, 8, 0.63], [21793, 1, 8, 3.94], [616, 2, 7, 0.92], [413, 1, 7, 1.27], [411, 2, 7, 0.83], [10574, 3, 9, 2.49], [412, 1, 7, 2.27], [8675, 2, 11, 2.19], [8673, 2, 9, 2.91], [143, 2, 7, 0.96], [6158, 2, 11, 2.15], [151, 1, 7, 0.9], [11836, 2, 7, 1.11], [10149, 3, 21, 3.19], [2050, 3, 7, 0.64], [3495, 3, 21, 2.56], [146, 2, 7, 0.94], [2054, 3, 7, 1.4], [75, 2, 7, 3.21], [88, 10, 16, 3.31], [7885, 4, 9, 1.37], [416, 1, 7, 1.27], [144, 2, 7, 0.9], [21798, 1, 7, 0.96], [10993, 2, 7, 1.25], [2859, 15, 7, 1.0], [346, 3, 8, 3.06], [335, 3, 17, 3.87], [2423, 80, 7, 2.23], [7705, 2, 7, 2.49], [2424, 29, 7, 2.79], [214, 3, 15, 3.59], [2423, 29, 7, 2.17], [7704, 2, 7, 2.49], [9784, 1, 7, 1.0], [5165, 1, 7, 2.02], [3848, 2, 7, 1.94], [13023, 3, 10, 2.81], [2424, 80, 7, 2.85], [346, 1, 7, 2.81], [1519, 3, 16, 0.67], [201, 3, 7, 2.66], [410, 1, 7, 1.06], [13034, 3, 8, 2.69], [345, 3, 7, 1.99], [5208, 3, 11, 1.15], [11490, 1, 7, 0.81], [6494, 1, 7, 0.92], [11770, 1, 7, 3.31], [432, 3, 11, 4.94], [7004, 1, 7, 0.81], [12373, 1, 11, 2.57], [308, 1, 9, 2.72], [2703, 3, 7, 3.33], [3430, 15, 7, 1.75], [7706, 2, 9, 2.62], [6952, 1, 7, 1.12], [20927, 1, 7, 1.35], [114, 3, 7, 1.1], [1886, 2, 7, 0.85], [3429, 15, 7, 0.81], [7886, 4, 9, 1.06], [94, 4, 7, 2.07], [1492, 1, 7, 2.1], [13928, 1, 7, 2.49], [105, 3, 7, 0.9], [11811, 1, 7, 1.82], [3981, 3, 15, 0.91], [3893, 1, 7, 2.83], [2331, 1, 7, 3.07], [3891, 1, 7, 2.83], [11089, 1, 7, 1.56], [10407, 10, 10, 3.72], [3, 2, 7, 3.47], [1490, 1, 7, 3.91], [13033, 3, 7, 1.39], [22317, 3, 8, 0.83], [5584, 3, 7, 5.0], [11674, 1, 7, 0.88], [944, 15, 7, 0.77], [1274, 1, 7, 0.69], [952, 4, 7, 3.58], [10410, 10, 10, 3.76], [7708, 2, 7, 2.49], [5812, 3, 7, 2.91], [9690, 1, 7, 3.09], [9342, 2, 7, 1.1], [10409, 10, 11, 3.34], [5946, 1, 7, 2.83], [202, 2, 7, 1.37], [1339, 3, 17, 0.66], [10398, 2, 7, 2.62], [8898, 3, 7, 1.18], [95, 3, 13, 4.54], [957, 2, 7, 1.04], [963, 3, 7, 2.7], [21003, 2, 7, 0.96], [1339, 1, 7, 0.83], [3478, 2, 7, 0.87], [20969, 3, 7, 1.66], [7703, 2, 7, 2.49], [11677, 1, 7, 2.4], [10516, 3, 8, 0.65], [823, 1, 7, 0.79], [9082, 3, 24, 2.83], [3980, 4, 7, 2.76], [14041, 3, 7, 2.5], [186, 3, 12, 0.84], [20196, 2, 7, 4.04], [3889, 1, 7, 2.83], [4253, 1, 7, 1.96], [11490, 1, 101, 1.74], [6494, 1, 47, 1.85], [11770, 1, 193, 4.23], [432, 3, 231, 6.0], [7004, 1, 73, 1.74], [12373, 1, 502, 3.5], [308, 1, 153, 4.75], [2703, 3, 282, 4.26], [3430, 15, 64, 2.68], [7706, 2, 161, 4.65], [6952, 1, 174, 2.05], [20927, 1, 73, 2.28], [114, 3, 221, 3.13], [1886, 2, 145, 1.78], [3429, 15, 49, 1.74], [7886, 4, 64, 2.53], [94, 4, 111, 3.0], [1492, 1, 34, 3.03], [13928, 1, 43, 3.42], [105, 3, 225, 1.83], [11811, 1, 417, 2.74], [3981, 3, 1548, 1.83], [3893, 1, 114, 3.76], [2331, 1, 107, 4.0], [3891, 1, 114, 3.76], [11089, 1, 158, 2.49], [10407, 10, 1073, 4.63], [3, 2, 109, 4.4], [1490, 1, 45, 4.84], [13033, 3, 539, 2.33], [22317, 3, 295, 1.75], [5584, 3, 210, 6.0], [11674, 1, 190, 1.8], [944, 15, 41, 1.7], [1274, 1, 75, 1.62], [952, 4, 67, 4.51], [10410, 10, 1073, 4.67], [7708, 2, 163, 3.42], [5812, 3, 545, 3.84], [9690, 1, 69, 4.01], [9342, 2, 427, 2.03], [10409, 10, 1618, 4.3], [5946, 1, 114, 3.76], [202, 2, 68, 2.3], [1339, 3, 1618, 1.61], [10398, 2, 134, 3.55], [8898, 3, 257, 2.11], [95, 3, 911, 5.48], [957, 2, 99, 1.97], [963, 3, 366, 3.64], [21003, 2, 261, 1.89], [1339, 1, 67, 1.76], [3478, 2, 70, 1.8], [20969, 3, 542, 2.58], [7703, 2, 163, 3.42], [11677, 1, 412, 3.33], [10516, 3, 550, 1.58], [823, 1, 37, 1.72], [9082, 3, 2258, 3.75], [3980, 4, 437, 4.52], [14041, 3, 605, 3.44], [186, 3, 616, 1.77], [20196, 2, 261, 4.97], [3889, 1, 114, 3.76], [4253, 1, 158, 2.89]]</t>
-  </si>
-  <si>
-    <t>[[2778, 2, 17, 1.08], [6935, 2, 28, 5.0], [6936, 2, 9, 2.9], [305, 2, 9, 1.46], [8672, 2, 15, 2.18], [1504, 2, 14, 1.49], [615, 2, 9, 1.48], [12721, 2, 11, 1.74], [2327, 2, 11, 1.82], [143, 2, 9, 2.5], [146, 2, 7, 2.14], [2328, 2, 11, 1.85], [11681, 2, 13, 2.3], [205, 2, 7, 1.24], [5491, 2, 11, 0.61], [8676, 2, 9, 1.6], [8673, 2, 11, 2.44], [11835, 2, 7, 1.06], [8650, 2, 14, 4.38], [144, 2, 7, 2.11], [308, 1, 11, 4.19], [11837, 2, 7, 1.06], [3, 2, 7, 2.41], [6097, 80, 7, 3.92], [22247, 2, 7, 2.33], [11836, 2, 9, 1.19], [6497, 1, 7, 0.85], [6097, 29, 7, 4.96], [2424, 29, 7, 0.89], [6098, 80, 9, 4.33], [11739, 2, 7, 2.62], [2054, 3, 9, 1.53], [13260, 29, 7, 2.28], [6494, 1, 7, 0.92], [3429, 15, 7, 0.69], [326, 2, 7, 1.27], [2424, 80, 7, 2.57], [75, 2, 7, 1.36], [335, 3, 17, 2.98], [1339, 1, 7, 0.83], [411, 2, 7, 1.12], [1492, 1, 7, 2.1], [1339, 3, 17, 0.66], [1050, 2, 7, 0.73], [6496, 1, 7, 2.07], [7704, 2, 7, 3.45], [214, 3, 15, 3.59], [346, 1, 7, 0.94], [346, 3, 8, 0.83], [2859, 15, 7, 1.7], [10149, 3, 21, 1.49], [345, 3, 7, 2.01], [13264, 29, 7, 1.25], [13258, 29, 13, 2.61], [1490, 1, 7, 3.91], [1243, 2, 7, 2.14], [22558, 3, 9, 1.74], [5208, 3, 13, 1.3], [201, 3, 7, 3.06], [229, 1, 7, 2.96], [10407, 10, 10, 3.72], [8943, 3, 7, 0.71], [432, 3, 7, 2.04], [2438, 1, 7, 3.24], [7705, 2, 7, 3.45], [2331, 1, 7, 1.75], [13259, 29, 11, 4.17], [2912, 1, 7, 1.85], [7706, 2, 7, 3.45], [12229, 2, 7, 0.87], [957, 2, 7, 1.43], [13928, 1, 7, 2.49], [114, 3, 7, 1.39], [3478, 2, 7, 0.87], [1163, 3, 7, 2.33], [1548, 1, 7, 2.1], [21793, 1, 8, 5.0], [9784, 1, 7, 1.42], [7036, 1, 7, 3.69], [8938, 2, 7, 1.12], [11844, 2, 7, 1.21], [11490, 1, 7, 1.38], [2703, 3, 7, 4.45], [11687, 2, 7, 1.52], [11404, 2, 7, 0.96], [13258, 25, 7, 2.57], [410, 1, 7, 1.06], [1886, 2, 7, 0.85], [159, 16, 7, 0.69], [9065, 2, 7, 1.62], [94, 4, 7, 1.16], [11690, 2, 7, 1.0], [19687, 1, 7, 2.28], [12870, 1, 7, 3.68], [413, 1, 7, 1.02], [7708, 2, 7, 3.45], [414, 1, 7, 1.17], [2438, 2, 8, 2.54], [11689, 2, 7, 1.48], [956, 2, 7, 1.1], [11161, 1, 10, 3.62], [11159, 1, 14, 2.72], [22125, 2, 7, 0.69], [5976, 1, 7, 1.64], [9760, 29, 7, 1.64], [21781, 2, 7, 0.9], [12373, 1, 11, 3.44], [105, 3, 7, 1.24], [7005, 1, 7, 1.56], [1274, 1, 7, 4.06], [5584, 3, 7, 5.0], [2991, 3, 7, 2.7], [2805, 137, 10, 2.4], [13259, 25, 7, 2.6], [11811, 1, 7, 1.82], [9785, 1, 7, 1.42], [4253, 1, 7, 1.41], [3495, 3, 21, 2.56], [20927, 1, 7, 1.35], [8600, 1, 7, 2.12], [9209, 29, 7, 0.71], [11489, 1, 7, 1.38], [9372, 1, 7, 4.12], [247, 1, 7, 3.34], [10147, 1, 7, 0.69], [9690, 1, 7, 3.09], [9491, 21, 16, 3.13], [6360, 10, 15, 1.18], [12764, 2, 8, 1.69], [8285, 2, 8, 0.85], [5769, 3, 10, 0.93], [7007, 1, 7, 1.56], [21269, 3, 7, 3.77], [5076, 1, 7, 1.75], [7706, 2, 162, 4.38], [12229, 2, 138, 2.9], [957, 2, 82, 3.46], [13928, 1, 43, 3.42], [114, 3, 224, 2.32], [3478, 2, 70, 1.8], [1548, 1, 91, 3.03], [21793, 1, 212, 6.0], [9784, 1, 67, 2.35], [7036, 1, 118, 4.62], [8938, 2, 175, 2.05], [11844, 2, 253, 2.13], [11490, 1, 100, 2.31], [2703, 3, 266, 5.38], [11687, 2, 277, 2.46], [11404, 2, 96, 1.89], [13258, 25, 72, 3.5], [410, 1, 97, 1.99], [1886, 2, 145, 1.78], [159, 16, 42, 1.5], [9065, 2, 277, 2.55], [94, 4, 111, 3.19], [11690, 2, 277, 1.93], [19687, 1, 28, 3.21], [12870, 1, 128, 4.61], [413, 1, 79, 1.95], [7708, 2, 162, 4.38], [414, 1, 79, 2.1], [2438, 2, 573, 3.47], [11689, 2, 277, 2.41], [956, 2, 98, 2.03], [11161, 1, 453, 4.54], [11159, 1, 446, 3.64], [22125, 2, 58, 1.62], [5976, 1, 145, 2.57], [9760, 29, 66, 2.57], [21781, 2, 96, 1.83], [12373, 1, 493, 4.36], [105, 3, 224, 2.17], [7005, 1, 73, 2.49], [1274, 1, 74, 4.99], [5584, 3, 210, 6.0], [2991, 3, 146, 3.63], [2805, 137, 169, 3.33], [13259, 25, 64, 3.53], [11811, 1, 417, 2.74], [9785, 1, 67, 2.35], [4253, 1, 156, 3.44], [3495, 3, 888, 3.48], [20927, 1, 73, 2.28], [8600, 1, 133, 3.05], [9209, 29, 30, 1.64], [11489, 1, 100, 2.31], [9372, 1, 211, 5.04], [247, 1, 79, 4.27], [10147, 1, 62, 1.62], [9690, 1, 69, 4.01], [9491, 21, 1806, 4.07], [6360, 10, 682, 2.11], [12764, 2, 682, 2.62], [8285, 2, 444, 1.79], [5769, 3, 1013, 1.87], [7007, 1, 73, 2.49], [21269, 3, 266, 4.71], [5076, 1, 121, 2.68]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 12, 2.4], [141, 2, 7, 0.92], [2778, 2, 13, 1.69], [362, 2, 7, 1.69], [205, 2, 7, 0.69], [6935, 2, 19, 5.0], [12721, 2, 17, 3.77], [206, 2, 7, 0.77], [8676, 2, 7, 1.35], [2049, 3, 17, 0.73], [22247, 2, 7, 1.83], [523, 2, 7, 1.27], [305, 2, 7, 1.12], [8650, 2, 9, 2.89], [8648, 2, 7, 3.37], [2776, 2, 7, 1.38], [2328, 2, 7, 2.48], [616, 2, 7, 2.48], [2327, 2, 7, 1.48], [8674, 2, 7, 1.29], [589, 2, 7, 1.56], [11835, 2, 7, 0.94], [412, 1, 7, 2.34], [143, 2, 7, 1.1], [146, 2, 7, 0.98], [6497, 1, 9, 0.85], [6097, 80, 7, 4.54], [583, 2, 7, 1.39], [326, 2, 7, 1.48], [10149, 3, 21, 3.19], [6097, 29, 7, 1.85], [11836, 2, 7, 1.29], [145, 2, 7, 0.81], [144, 2, 7, 1.04], [10574, 3, 10, 2.88], [6494, 1, 7, 0.92], [6496, 1, 7, 2.09], [2054, 3, 7, 2.44], [1413, 15, 7, 0.83], [6098, 80, 7, 2.11], [1886, 2, 20, 1.67], [944, 15, 7, 0.77], [21793, 1, 8, 5.0], [6098, 29, 7, 2.21], [247, 1, 7, 4.37], [335, 3, 17, 3.87], [3429, 15, 7, 0.69], [201, 3, 7, 0.94], [1490, 1, 7, 2.66], [21798, 1, 7, 0.96], [308, 1, 14, 1.66], [2859, 15, 7, 0.85], [6158, 2, 11, 2.15], [9998, 80, 7, 3.39], [3478, 2, 7, 0.87], [13928, 1, 7, 2.49], [7084, 3, 7, 1.42], [11489, 1, 7, 1.3], [1703, 2, 7, 1.53], [107, 2, 7, 2.8], [5812, 3, 9, 3.96], [4253, 1, 7, 1.96], [107, 7, 8, 2.74], [9342, 2, 7, 1.1], [1050, 2, 7, 0.73], [94, 4, 7, 0.92], [186, 3, 12, 0.84], [11490, 1, 7, 0.81], [1309, 1, 7, 3.14], [214, 3, 15, 3.59], [5813, 3, 10, 3.68], [10398, 2, 7, 1.32], [5811, 3, 8, 4.0], [11767, 1, 7, 0.83], [2821, 3, 13, 0.91], [9491, 21, 16, 0.87], [8599, 1, 7, 1.48], [3980, 4, 7, 2.76], [11811, 1, 7, 1.82], [11771, 1, 7, 4.31], [229, 1, 7, 2.27], [8898, 3, 7, 5.0], [8944, 3, 7, 0.71], [3495, 3, 21, 2.56], [1339, 3, 17, 0.66], [1049, 2, 7, 0.73], [9358, 1, 7, 2.79], [409, 1, 7, 2.04], [955, 2, 7, 1.0], [192, 3, 21, 4.05], [346, 3, 8, 0.83], [2991, 3, 7, 4.73], [19687, 1, 7, 2.28], [12764, 2, 8, 1.69], [13928, 2, 7, 2.59], [7036, 1, 7, 3.69], [9690, 1, 7, 3.09], [22573, 2, 7, 1.54], [10124, 1, 7, 4.2], [6575, 3, 7, 3.12], [5584, 3, 7, 5.0], [3334, 5, 7, 1.41], [8897, 3, 7, 5.0], [10147, 1, 7, 0.69], [1277, 1, 7, 0.92], [1701, 2, 7, 1.06], [11886, 2, 7, 1.44], [20927, 1, 7, 1.35], [1523, 1, 7, 1.29], [11678, 1, 7, 1.98], [4001, 3, 14, 1.78], [13260, 29, 7, 2.46], [23275, 2, 7, 1.56], [10516, 3, 8, 3.0], [11677, 1, 7, 2.4], [9065, 2, 7, 1.62], [973, 3, 8, 1.92], [45, 2, 7, 1.2], [3984, 3, 8, 1.07], [346, 1, 7, 0.94], [3979, 3, 8, 1.56], [21269, 3, 7, 2.2], [23031, 3, 7, 3.25], [19924, 2, 7, 1.41], [9373, 5, 7, 2.33], [10181, 26, 8, 0.81], [958, 2, 7, 0.69], [11690, 2, 7, 1.0], [5976, 1, 7, 2.54], [9069, 1, 7, 1.23], [23032, 3, 7, 2.86], [7005, 1, 7, 1.56], [1339, 1, 7, 0.83], [11490, 1, 101, 1.74], [1309, 1, 47, 4.07], [214, 3, 337, 4.39], [5813, 3, 532, 5.42], [10398, 2, 135, 2.25], [5811, 3, 460, 5.34], [11767, 1, 151, 1.76], [2821, 3, 1232, 1.82], [9491, 21, 1971, 1.82], [8599, 1, 133, 2.4], [3980, 4, 437, 4.52], [11811, 1, 417, 2.74], [11771, 1, 192, 5.24], [229, 1, 75, 3.2], [8898, 3, 257, 6.0], [8944, 3, 206, 1.64], [3495, 3, 888, 3.48], [1339, 3, 1618, 1.61], [1049, 2, 44, 1.45], [9358, 1, 52, 3.72], [409, 1, 14, 2.58], [955, 2, 100, 1.93], [346, 3, 573, 1.76], [2991, 3, 146, 6.0], [19687, 1, 28, 3.21], [12764, 2, 682, 2.62], [13928, 2, 21, 3.52], [7036, 1, 118, 4.62], [9690, 1, 69, 4.01], [22573, 2, 65, 2.47], [10124, 1, 92, 5.13], [6575, 3, 231, 4.05], [5584, 3, 210, 6.0], [3334, 5, 170, 2.33], [8897, 3, 257, 6.0], [10147, 1, 62, 1.62], [1277, 1, 180, 1.84], [1701, 2, 156, 1.99], [11886, 2, 177, 2.37], [20927, 1, 73, 2.28], [1523, 1, 44, 2.22], [11678, 1, 409, 2.9], [4001, 3, 742, 2.71], [13260, 29, 67, 3.39], [23275, 2, 65, 2.49], [10516, 3, 542, 3.92], [11677, 1, 412, 3.33], [9065, 2, 277, 2.55], [973, 3, 1084, 2.84], [45, 2, 105, 2.12], [3984, 3, 1527, 1.97], [346, 1, 143, 1.87], [3979, 3, 742, 2.49], [21269, 3, 265, 3.13], [23031, 3, 376, 4.18], [19924, 2, 59, 2.34], [9373, 5, 84, 3.26], [10181, 26, 128, 1.74], [958, 2, 99, 1.62], [11690, 2, 277, 1.93], [5976, 1, 143, 3.47], [9069, 1, 112, 2.16], [23032, 3, 475, 3.79], [7005, 1, 73, 2.49], [1339, 1, 67, 1.76]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 28, 4.18], [305, 2, 7, 0.88], [2328, 2, 11, 1.85], [2778, 2, 13, 1.86], [8650, 2, 9, 2.32], [8672, 2, 12, 1.94], [5491, 2, 7, 0.85], [143, 2, 7, 0.93], [6936, 2, 9, 3.12], [145, 2, 7, 0.96], [11837, 2, 7, 0.87], [11681, 2, 13, 2.3], [5493, 2, 9, 1.81], [589, 2, 7, 0.69], [75, 2, 7, 1.79], [146, 2, 7, 1.1], [12721, 2, 11, 1.45], [8673, 2, 11, 2.2], [8853, 2, 7, 2.88], [326, 2, 9, 1.68], [11835, 2, 7, 0.69], [1005, 2, 7, 2.48], [144, 2, 7, 1.34], [990, 2, 7, 1.16], [8915, 2, 11, 2.76], [308, 1, 11, 4.19], [88, 10, 21, 1.78], [434, 2, 7, 1.04], [6158, 2, 12, 1.25], [2424, 29, 7, 0.89], [7704, 2, 7, 3.01], [2423, 29, 7, 2.17], [11836, 2, 9, 1.36], [2424, 80, 7, 2.57], [7705, 2, 9, 4.08], [1413, 15, 7, 0.99], [7706, 2, 9, 3.46], [10574, 3, 10, 3.31], [2054, 3, 9, 2.2], [2423, 80, 7, 2.23], [3, 2, 9, 2.19], [944, 15, 7, 1.02], [412, 1, 7, 2.34], [3478, 2, 9, 2.45], [2859, 15, 7, 2.42], [10149, 3, 21, 1.49], [12720, 2, 7, 1.89], [7004, 1, 9, 2.58], [74, 1, 7, 0.87], [346, 3, 8, 3.06], [11919, 1, 7, 1.48], [6497, 1, 7, 0.85], [1339, 3, 17, 0.66], [346, 1, 7, 2.81], [10993, 2, 7, 1.25], [13928, 1, 7, 2.49], [418, 2, 7, 0.94], [411, 2, 7, 0.74], [13260, 29, 7, 2.5], [13034, 3, 11, 2.28], [11089, 1, 7, 1.56], [7036, 1, 7, 3.14], [6952, 1, 7, 3.06], [13028, 3, 7, 1.96], [14037, 3, 7, 1.91], [1050, 2, 7, 0.66], [8274, 3, 9, 1.44], [7707, 2, 7, 1.93], [2991, 3, 7, 4.18], [1339, 1, 7, 0.83], [22317, 3, 18, 1.09], [9784, 1, 7, 1.37], [6494, 1, 7, 0.92], [7708, 2, 7, 2.89], [21793, 1, 8, 4.0], [6630, 3, 7, 4.62], [8943, 3, 7, 0.71], [1243, 2, 7, 2.08], [1490, 1, 7, 3.91], [3495, 3, 21, 2.56], [5208, 3, 11, 1.15], [2912, 1, 7, 1.64], [563, 2, 7, 1.19], [11491, 2, 7, 1.42], [11490, 1, 7, 1.29], [229, 1, 7, 2.96], [8944, 3, 7, 0.71], [5940, 3, 9, 0.75], [192, 3, 21, 4.51], [1049, 2, 7, 0.69], [6627, 3, 7, 0.85], [12229, 2, 7, 0.87], [11581, 29, 7, 1.89], [13033, 3, 7, 1.72], [2331, 1, 7, 1.75], [23275, 2, 7, 1.56], [201, 3, 7, 1.16], [5165, 1, 7, 1.41], [247, 1, 7, 2.39], [1274, 1, 7, 1.58], [214, 3, 15, 3.59], [7886, 4, 9, 0.87], [2805, 137, 10, 1.17], [21798, 1, 7, 1.13], [335, 3, 17, 3.87], [20555, 2, 7, 2.66], [8635, 3, 7, 1.12], [114, 3, 7, 2.85], [8898, 3, 7, 2.76], [6496, 1, 7, 2.5], [942, 3, 9, 2.01], [6629, 3, 7, 0.9], [1703, 2, 7, 1.02], [11770, 1, 7, 2.54], [5812, 3, 7, 2.49], [10406, 10, 12, 3.4], [202, 2, 7, 1.19], [83, 2, 7, 0.96], [9760, 29, 7, 3.29], [21269, 3, 7, 2.34], [332, 2, 7, 1.19], [215, 4, 7, 5.0], [186, 3, 15, 2.31], [9372, 1, 7, 4.12], [9827, 3, 7, 0.75], [4940, 1, 7, 0.67], [2821, 3, 13, 0.91], [10527, 3, 13, 3.97], [5811, 3, 8, 2.39], [1886, 2, 7, 0.85], [11767, 1, 7, 0.83], [11489, 1, 7, 1.29], [12373, 1, 11, 3.44], [21781, 2, 7, 0.9], [12870, 1, 7, 4.22], [22317, 3, 249, 3.38], [9784, 1, 67, 2.3], [6494, 1, 47, 1.85], [7708, 2, 161, 4.65], [21793, 1, 185, 6.0], [6630, 3, 72, 6.0], [8943, 3, 305, 1.61], [1243, 2, 77, 3.86], [1490, 1, 45, 4.84], [3495, 3, 888, 3.48], [5208, 3, 521, 2.08], [2912, 1, 44, 2.57], [563, 2, 68, 2.12], [11491, 2, 130, 2.35], [11490, 1, 100, 2.22], [229, 1, 75, 3.89], [8944, 3, 206, 1.64], [5940, 3, 201, 2.19], [192, 3, 1071, 6.0], [1049, 2, 59, 1.5], [6627, 3, 72, 2.88], [12229, 2, 138, 2.9], [11581, 29, 55, 2.82], [13033, 3, 542, 2.64], [2331, 1, 108, 2.68], [23275, 2, 65, 2.49], [201, 3, 279, 2.09], [5165, 1, 44, 2.34], [247, 1, 80, 3.32], [1274, 1, 75, 2.51], [214, 3, 337, 4.39], [7886, 4, 132, 1.8], [2805, 137, 171, 2.1], [21798, 1, 128, 2.06], [335, 3, 1178, 4.78], [20555, 2, 52, 3.59], [114, 3, 189, 4.14], [8898, 3, 254, 4.54], [6496, 1, 36, 4.1], [942, 3, 267, 4.29], [6629, 3, 73, 1.83], [1703, 2, 153, 1.95], [11770, 1, 193, 4.09], [5812, 3, 530, 4.52], [10406, 10, 1618, 4.36], [202, 2, 68, 2.12], [83, 2, 49, 1.89], [9760, 29, 19, 4.09], [21269, 3, 265, 4.12], [332, 2, 68, 2.12], [215, 4, 34, 5.95], [186, 3, 511, 4.18], [9372, 1, 211, 5.04], [9827, 3, 80, 1.68], [4940, 1, 112, 1.6], [2821, 3, 1232, 1.82], [10527, 3, 803, 4.89], [5811, 3, 539, 3.32], [1886, 2, 145, 1.78], [11767, 1, 151, 1.76], [11489, 1, 100, 2.22], [12373, 1, 493, 4.36], [21781, 2, 96, 1.83], [12870, 1, 125, 5.15]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 11, 3.36], [141, 2, 9, 1.09], [589, 2, 10, 0.75], [2778, 2, 11, 1.33], [6936, 2, 13, 3.9], [11681, 2, 30, 4.17], [2327, 2, 9, 1.37], [362, 2, 11, 1.69], [8648, 2, 9, 3.8], [8650, 2, 11, 3.82], [305, 2, 11, 3.03], [326, 2, 9, 2.62], [2328, 2, 7, 1.85], [2775, 2, 9, 1.33], [8853, 2, 14, 4.03], [361, 2, 7, 1.36], [143, 2, 7, 1.52], [593, 2, 9, 1.21], [140, 2, 7, 1.19], [3840, 1, 7, 0.96], [523, 2, 7, 1.49], [21793, 1, 7, 3.22], [151, 1, 7, 0.96], [412, 1, 7, 1.19], [7036, 1, 7, 1.63], [990, 2, 9, 1.69], [21798, 1, 7, 0.96], [5165, 1, 7, 1.87], [145, 2, 7, 2.17], [12349, 1, 7, 4.19], [201, 3, 13, 3.61], [6952, 1, 9, 3.19], [2050, 3, 9, 3.0], [6097, 80, 7, 5.0], [2055, 3, 9, 2.57], [345, 3, 9, 1.93], [10993, 2, 7, 1.41], [144, 2, 7, 1.17], [7084, 3, 7, 3.68], [2057, 3, 9, 2.57], [3891, 1, 7, 1.46], [11770, 1, 7, 0.85], [998, 2, 11, 1.56], [2912, 1, 7, 1.75], [5165, 2, 12, 1.0], [3893, 1, 7, 1.42], [9372, 1, 7, 3.52], [12870, 1, 7, 2.0], [12343, 1, 7, 4.19], [1886, 2, 7, 0.96], [5208, 3, 8, 0.62], [7885, 4, 7, 1.42], [12351, 1, 7, 1.57], [6097, 29, 9, 5.0], [6098, 80, 7, 3.16], [6158, 2, 9, 2.33], [2424, 80, 7, 3.16], [3334, 5, 7, 2.3], [11089, 1, 9, 1.67], [10149, 3, 24, 1.49], [12345, 1, 7, 4.19], [12344, 1, 7, 1.03], [1492, 1, 7, 1.08], [1519, 3, 20, 0.67], [4032, 29, 7, 1.06], [3889, 1, 7, 1.64], [2912, 2, 8, 1.56], [12304, 1, 7, 2.88], [13028, 3, 7, 4.17], [3576, 25, 9, 2.9], [972, 3, 7, 1.44], [411, 2, 7, 1.25], [13034, 3, 7, 4.12], [2331, 1, 7, 3.07], [229, 1, 7, 4.37], [11583, 29, 7, 0.89], [11426, 25, 7, 0.81], [11490, 1, 7, 1.25], [5151, 2, 7, 0.87], [3, 2, 9, 1.41], [5076, 1, 7, 1.06], [12764, 2, 9, 1.76], [13893, 2, 7, 3.82], [2805, 137, 7, 2.3], [3478, 2, 7, 1.67], [1703, 2, 7, 1.39], [2160, 68, 7, 2.25], [3575, 25, 7, 1.49], [13023, 3, 8, 2.24], [5812, 3, 8, 4.08], [13280, 1, 7, 2.1], [4253, 1, 7, 2.02], [2438, 2, 8, 2.54], [11404, 2, 7, 0.83], [11814, 1, 7, 0.92], [3577, 25, 7, 1.0], [9289, 29, 7, 1.55], [75, 2, 7, 0.71], [11813, 1, 7, 2.65], [9971, 2, 7, 3.5], [957, 2, 7, 2.0], [9967, 2, 7, 1.82], [11150, 2, 8, 0.69], [9069, 1, 7, 1.21], [22317, 3, 7, 0.85], [8283, 2, 8, 2.25], [1413, 15, 7, 1.31], [2878, 1, 7, 1.46], [5584, 3, 7, 3.36], [4586, 10, 15, 1.4], [9964, 2, 7, 4.37], [10407, 10, 12, 0.87], [9491, 21, 15, 2.64], [9965, 2, 7, 3.5], [114, 3, 7, 2.46], [10609, 1, 7, 2.27], [289, 3, 7, 1.63], [13249, 29, 7, 1.79], [4076, 3, 7, 3.06], [21697, 3, 7, 0.87], [14041, 3, 7, 2.5], [8926, 1, 7, 3.87], [12647, 1, 7, 1.12], [192, 3, 13, 3.54], [24257, 1, 7, 2.78], [11739, 2, 7, 0.83], [1277, 1, 7, 0.83], [336, 15, 7, 0.77], [11687, 2, 7, 0.73], [3495, 3, 16, 2.43], [1163, 3, 7, 2.33], [7324, 1, 7, 1.98], [2528, 29, 7, 2.63], [11425, 25, 7, 0.81], [1801, 1, 7, 2.7], [3576, 25, 47, 3.86], [972, 3, 557, 2.29], [411, 2, 102, 2.1], [13034, 3, 551, 4.96], [2331, 1, 109, 3.92], [229, 1, 76, 5.22], [11583, 29, 53, 1.74], [11426, 25, 111, 1.66], [11490, 1, 102, 2.1], [5151, 2, 23, 1.72], [3, 2, 95, 3.25], [5076, 1, 121, 1.91], [12764, 2, 690, 2.62], [13893, 2, 249, 4.67], [2805, 137, 168, 3.15], [3478, 2, 59, 2.86], [1703, 2, 153, 2.25], [2160, 68, 123, 3.1], [3575, 25, 79, 3.16], [13023, 3, 460, 3.92], [5812, 3, 455, 5.52], [13280, 1, 298, 2.95], [4253, 1, 158, 2.87], [2438, 2, 581, 3.39], [11404, 2, 81, 2.5], [11814, 1, 209, 1.77], [3577, 25, 83, 1.85], [9289, 29, 59, 2.4], [75, 2, 137, 1.56], [11813, 1, 291, 3.5], [9971, 2, 249, 4.35], [957, 2, 83, 3.42], [9967, 2, 249, 2.67], [11150, 2, 329, 1.54], [9069, 1, 115, 2.06], [22317, 3, 300, 1.7], [8283, 2, 437, 3.09], [1413, 15, 92, 2.16], [2878, 1, 63, 2.52], [5584, 3, 226, 4.21], [4586, 10, 1138, 3.05], [9964, 2, 249, 5.23], [10407, 10, 1086, 1.7], [9491, 21, 1959, 3.5], [9965, 2, 249, 4.35], [10609, 1, 264, 3.11], [289, 3, 538, 2.47], [13249, 29, 60, 2.64], [4076, 3, 186, 3.91], [21697, 3, 170, 1.72], [14041, 3, 613, 3.35], [8926, 1, 57, 4.72], [12647, 1, 205, 1.98], [192, 3, 1261, 4.37], [24257, 1, 49, 3.43], [11739, 2, 54, 1.68], [1277, 1, 184, 1.68], [336, 15, 39, 1.42], [11687, 2, 284, 1.58], [3495, 3, 899, 3.28], [7324, 1, 57, 2.83], [2528, 29, 88, 3.48], [11425, 25, 111, 1.66], [1801, 1, 87, 3.55]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 15, 2.66], [305, 2, 7, 1.49], [6935, 2, 19, 3.76], [2049, 3, 16, 0.78], [141, 2, 7, 0.75], [205, 2, 7, 0.96], [326, 2, 8, 1.03], [144, 2, 7, 0.94], [589, 2, 12, 0.67], [362, 2, 7, 2.54], [151, 1, 7, 0.89], [1776, 1, 7, 2.85], [146, 2, 7, 1.37], [143, 2, 7, 1.12], [206, 2, 7, 0.69], [1777, 1, 7, 2.22], [2328, 2, 7, 1.01], [8648, 2, 9, 2.52], [20252, 2, 7, 0.85], [6936, 2, 10, 2.57], [5151, 2, 7, 2.5], [8650, 2, 7, 3.41], [1007, 2, 10, 0.79], [2778, 2, 9, 1.06], [8677, 3, 8, 3.19], [76, 2, 11, 3.36], [10, 2, 11, 2.3], [8649, 2, 7, 3.11], [10149, 3, 25, 3.26], [2054, 3, 9, 2.1], [412, 1, 7, 1.75], [13028, 3, 7, 1.29], [361, 2, 7, 1.25], [413, 1, 7, 1.89], [7004, 1, 7, 0.77], [11404, 2, 7, 0.92], [7084, 3, 7, 2.91], [411, 2, 7, 1.17], [410, 1, 7, 1.42], [3478, 2, 7, 2.36], [308, 1, 7, 2.44], [167, 3, 7, 3.2], [5081, 2, 15, 1.3], [7005, 1, 9, 0.99], [3495, 3, 26, 2.98], [1124, 2, 10, 0.99], [432, 3, 7, 2.04], [9827, 3, 7, 1.38], [45, 2, 7, 3.67], [94, 4, 7, 3.04], [7036, 1, 7, 2.68], [3893, 1, 7, 1.02], [3889, 1, 7, 1.02], [168, 3, 9, 1.09], [10574, 3, 9, 2.32], [3891, 1, 7, 1.02], [2049, 1, 7, 3.02], [2336, 3, 8, 1.49], [12870, 1, 7, 4.97], [335, 3, 22, 3.78], [1504, 2, 16, 1.33], [6097, 29, 9, 4.96], [6097, 80, 7, 4.94], [998, 2, 9, 3.14], [214, 3, 15, 0.98], [11737, 2, 7, 1.66], [95, 3, 21, 0.92], [346, 1, 7, 1.33], [20927, 1, 7, 1.75], [6098, 29, 7, 3.7], [1490, 1, 7, 1.12], [79, 1, 7, 0.73], [5208, 3, 13, 1.54], [9069, 1, 7, 2.35], [22316, 3, 9, 0.97], [6098, 80, 7, 3.68], [8898, 3, 7, 4.23], [1070, 7, 13, 0.73], [14017, 3, 7, 1.29], [997, 2, 9, 2.57], [20498, 1, 7, 2.44], [346, 3, 8, 0.91], [13034, 3, 10, 2.73], [83, 2, 7, 0.85], [22554, 10, 15, 0.87], [1622, 1, 12, 0.53], [13260, 29, 7, 2.4], [7567, 3, 7, 3.69], [11116, 1, 7, 0.81], [8945, 3, 8, 1.84], [5811, 3, 6, 2.36], [22317, 3, 10, 1.35], [5946, 1, 7, 1.02], [5813, 3, 7, 1.98], [20498, 3, 10, 2.16], [5513, 2, 7, 1.0], [5209, 3, 7, 1.0], [12924, 1, 7, 0.86], [5086, 1, 11, 1.39], [995, 2, 9, 4.49], [996, 2, 9, 4.17], [33, 1, 7, 1.99], [974, 3, 7, 1.69], [972, 3, 8, 0.85], [229, 1, 7, 3.67], [1413, 15, 7, 0.87], [9691, 1, 7, 3.2], [35, 1, 7, 2.27], [8557, 3, 7, 1.53], [3049, 3, 7, 4.11], [20486, 3, 10, 3.51], [5584, 3, 7, 3.61], [8943, 3, 7, 0.71], [1703, 2, 7, 2.72], [13023, 3, 8, 2.62], [4076, 3, 7, 5.0], [2424, 80, 7, 4.51], [39, 1, 7, 1.54], [952, 4, 7, 4.29], [3900, 3, 9, 2.43], [8104, 1, 7, 0.75], [9081, 3, 15, 3.06], [11510, 3, 10, 1.73], [215, 4, 7, 5.0], [20486, 1, 7, 2.87], [34, 1, 7, 1.23], [972, 1, 7, 1.41], [114, 3, 7, 0.92], [6497, 1, 7, 2.18], [2854, 21, 13, 0.84], [3047, 3, 7, 1.93], [38, 1, 7, 1.99], [1414, 15, 7, 0.81], [20969, 3, 7, 2.17], [23611, 3, 7, 0.81], [8635, 3, 7, 1.1], [1339, 3, 20, 0.72], [95, 3, 796, 2.85], [346, 1, 128, 2.48], [1490, 1, 43, 2.28], [79, 1, 34, 1.75], [5208, 3, 293, 2.08], [22316, 3, 263, 2.34], [8898, 3, 199, 5.88], [1070, 7, 421, 2.65], [14017, 3, 139, 3.14], [997, 2, 196, 3.94], [20498, 1, 70, 3.85], [346, 3, 513, 2.32], [13034, 3, 414, 4.4], [83, 2, 47, 1.5], [22554, 10, 327, 1.52], [1622, 1, 94, 1.18], [13260, 29, 63, 3.05], [7567, 3, 60, 4.54], [11116, 1, 70, 1.46], [8945, 3, 490, 2.82], [5811, 3, 414, 4.08], [22317, 3, 224, 2.77], [5946, 1, 108, 1.67], [5813, 3, 414, 3.88], [20498, 3, 414, 3.8], [5513, 2, 69, 1.65], [5209, 3, 489, 1.65], [12924, 1, 38, 2.94], [5086, 1, 130, 4.04], [995, 2, 196, 6.0], [996, 2, 196, 5.82], [33, 1, 93, 2.83], [974, 3, 128, 2.34], [972, 3, 497, 2.03], [1413, 15, 86, 1.52], [9691, 1, 54, 4.56], [35, 1, 93, 3.43], [8557, 3, 144, 3.43], [3049, 3, 98, 5.52], [20486, 3, 419, 5.18], [5584, 3, 178, 5.02], [8943, 3, 334, 1.35], [1703, 2, 135, 4.12], [13023, 3, 414, 4.36], [4076, 3, 140, 6.0], [2424, 80, 152, 5.66], [39, 1, 93, 2.47], [952, 4, 62, 4.94], [8104, 1, 180, 1.4], [9081, 3, 381, 4.72], [11510, 3, 483, 3.4], [20486, 1, 71, 4.77], [34, 1, 97, 1.88], [972, 1, 83, 2.33], [114, 3, 203, 2.32], [6497, 1, 31, 3.34], [2854, 21, 885, 2.25], [3047, 3, 224, 2.58], [38, 1, 97, 2.64], [1414, 15, 83, 2.22], [20969, 3, 511, 2.81], [23611, 3, 300, 1.46], [1339, 3, 1518, 1.37]]</t>
+    <t>17/12/2025 13:05</t>
+  </si>
+  <si>
+    <t>23/12/2025 23:59</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 6, 0.73], [3, 2, 4, 1.22], [326, 2, 4, 0.29], [589, 2, 6, 0.2], [143, 2, 4, 0.58], [2049, 3, 9, 1.15], [6935, 2, 8, 1.27], [130, 1, 5, 0.6], [205, 2, 4, 0.2], [75, 2, 6, 0.87], [12721, 2, 6, 0.72], [144, 2, 4, 0.74], [145, 2, 4, 0.52], [8915, 2, 8, 0.2], [1776, 1, 4, 0.61], [593, 2, 5, 0.59], [146, 2, 4, 1.17], [151, 1, 4, 0.2], [2778, 2, 6, 0.2], [1777, 1, 4, 0.74], [20252, 2, 5, 0.2], [206, 2, 4, 0.2], [8648, 2, 4, 1.27], [990, 2, 4, 0.7], [2328, 2, 4, 0.2], [6936, 2, 6, 1.17], [5151, 2, 4, 0.47], [7886, 4, 5, 0.45], [8650, 2, 5, 1.65], [88, 10, 8, 0.44], [141, 2, 4, 0.28], [74, 1, 4, 1.53], [83, 2, 4, 0.44], [1492, 1, 5, 0.72], [7004, 1, 4, 0.2], [2054, 3, 5, 0.53], [362, 2, 4, 0.96], [2057, 3, 6, 0.47], [10825, 21, 10, 1.03], [8649, 2, 4, 1.4], [2055, 3, 5, 0.42], [345, 3, 4, 0.32], [7084, 3, 4, 2.28], [7005, 1, 4, 0.2], [307, 2, 4, 1.0], [3889, 1, 4, 0.2], [21793, 1, 5, 1.14], [410, 1, 4, 0.52], [432, 3, 6, 0.62], [7887, 4, 4, 0.35], [22247, 2, 5, 0.95], [57, 1, 4, 0.44], [11681, 2, 5, 1.79], [10149, 3, 15, 0.99], [308, 1, 4, 0.49], [7036, 1, 4, 0.68], [94, 4, 4, 0.2], [12870, 1, 4, 2.33], [5081, 2, 5, 0.44], [9827, 3, 4, 0.2], [201, 3, 5, 0.2], [167, 3, 5, 1.4], [13028, 3, 4, 0.62], [8677, 3, 6, 0.65], [1504, 2, 5, 0.52], [1124, 2, 8, 0.2], [3891, 1, 4, 0.2], [35, 1, 4, 0.83], [3893, 1, 4, 0.2], [8676, 2, 4, 0.73], [168, 3, 4, 1.23], [9760, 29, 4, 0.24], [5812, 3, 6, 0.8], [1243, 2, 4, 0.66], [6158, 2, 6, 0.51], [412, 1, 4, 1.39], [45, 2, 4, 0.64], [361, 2, 4, 0.53], [20927, 1, 4, 0.49], [335, 3, 11, 0.22], [1767, 25, 4, 0.59], [3980, 4, 4, 1.39], [346, 1, 4, 0.85], [95, 3, 14, 0.3], [9069, 1, 4, 0.42], [214, 3, 9, 0.2], [998, 2, 4, 1.22], [2049, 1, 4, 0.48], [413, 1, 5, 1.32], [3495, 3, 13, 1.31], [8674, 2, 4, 0.73], [856, 1, 4, 0.38], [34, 1, 4, 0.63], [8898, 3, 5, 0.75], [11116, 1, 5, 0.56], [346, 3, 4, 0.82], [1766, 25, 4, 0.56], [5946, 1, 4, 0.78], [1070, 7, 10, 0.46], [997, 2, 4, 0.77], [9691, 1, 4, 1.77], [20498, 1, 4, 0.23], [38, 1, 4, 0.88], [974, 3, 5, 1.13], [152, 21, 4, 0.43], [9372, 1, 5, 1.99], [14017, 3, 5, 1.04], [1091, 1, 4, 0.78], [22317, 3, 6, 0.51], [11954, 1, 5, 0.2], [20498, 3, 8, 0.57], [996, 2, 4, 1.22], [82, 2, 4, 0.46], [1080, 3, 5, 0.3], [9828, 3, 4, 0.2], [14037, 3, 4, 0.2], [39, 1, 4, 0.84], [5811, 3, 4, 2.2], [3048, 3, 4, 1.24], [972, 3, 5, 0.91], [1767, 2, 4, 0.59], [13260, 29, 4, 0.73], [24, 1, 4, 0.79], [4203, 1, 5, 0.3], [5813, 3, 5, 1.52], [10780, 10, 4, 1.3], [13034, 3, 5, 1.09], [5513, 2, 4, 1.0], [8945, 3, 5, 1.5], [952, 4, 4, 2.16], [202, 2, 4, 1.59], [3981, 3, 10, 1.42], [3900, 3, 4, 0.49], [995, 2, 4, 1.22], [6497, 1, 4, 0.47], [8672, 2, 339, 3.45], [3, 2, 142, 3.44], [326, 2, 110, 2.14], [589, 2, 172, 1.66], [143, 2, 168, 3.36], [6935, 2, 315, 5.06], [130, 1, 66, 2.8], [205, 2, 122, 2.81], [75, 2, 165, 3.91], [12721, 2, 321, 4.0], [144, 2, 180, 2.18], [145, 2, 171, 3.26], [8915, 2, 218, 1.5], [1776, 1, 122, 3.44], [593, 2, 77, 2.77], [146, 2, 171, 3.01], [151, 1, 75, 1.7], [2778, 2, 174, 3.37], [1777, 1, 122, 3.66], [20252, 2, 105, 1.86], [206, 2, 55, 2.12], [8648, 2, 248, 5.84], [2328, 2, 169, 3.6], [6936, 2, 315, 4.78], [5151, 2, 29, 1.66], [7886, 4, 132, 1.87], [8650, 2, 248, 6.0], [88, 10, 669, 2.75], [141, 2, 173, 3.92], [74, 1, 222, 5.84], [83, 2, 60, 1.77], [1492, 1, 41, 3.2], [7004, 1, 90, 1.73], [2054, 3, 532, 2.85], [362, 2, 167, 3.17], [2057, 3, 532, 3.18], [10825, 21, 710, 3.76], [8649, 2, 248, 6.0], [2055, 3, 532, 3.1], [345, 3, 337, 3.35], [7005, 1, 90, 1.72], [307, 2, 174, 2.69], [3889, 1, 138, 3.11], [21793, 1, 256, 5.01], [410, 1, 124, 1.76], [432, 3, 339, 3.45], [7887, 4, 157, 1.66], [22247, 2, 338, 3.49], [57, 1, 101, 1.76], [11681, 2, 295, 6.0], [10149, 3, 986, 3.97], [308, 1, 188, 3.55], [7036, 1, 143, 4.05], [94, 4, 133, 4.41], [12870, 1, 70, 6.0], [5081, 2, 213, 3.57], [9827, 3, 98, 3.03], [201, 3, 337, 3.35], [167, 3, 255, 3.97], [13028, 3, 163, 4.2], [8677, 3, 330, 3.57], [1504, 2, 228, 3.71], [1124, 2, 209, 3.48], [3891, 1, 138, 3.99], [35, 1, 125, 3.56]]</t>
+  </si>
+  <si>
+    <t>[[305, 2, 4, 0.45], [6935, 2, 6, 1.69], [589, 2, 5, 0.91], [2778, 2, 5, 0.2], [144, 2, 4, 0.29], [8915, 2, 5, 0.2], [130, 1, 4, 0.36], [2328, 2, 4, 0.2], [6936, 2, 5, 1.66], [205, 2, 4, 0.2], [8648, 2, 5, 1.15], [2775, 2, 4, 1.33], [593, 2, 6, 0.4], [145, 2, 4, 0.25], [146, 2, 5, 0.32], [5493, 2, 4, 0.2], [11681, 2, 4, 2.0], [7036, 1, 4, 1.53], [88, 10, 14, 0.52], [2776, 2, 4, 1.06], [141, 2, 5, 0.39], [151, 1, 4, 0.51], [1446, 2, 4, 0.53], [206, 2, 4, 0.2], [990, 2, 4, 0.39], [9760, 29, 4, 0.2], [248, 1, 4, 0.53], [5491, 2, 4, 0.4], [1007, 2, 4, 0.38], [8672, 2, 4, 2.86], [142, 2, 4, 0.92], [362, 2, 4, 0.52], [2912, 1, 4, 0.66], [10993, 2, 5, 0.35], [3893, 1, 4, 0.2], [12870, 1, 5, 1.68], [5165, 1, 4, 1.11], [7886, 4, 5, 0.44], [2055, 3, 5, 0.55], [417, 2, 4, 0.92], [9372, 1, 4, 1.17], [1622, 1, 5, 0.2], [3889, 1, 4, 0.2], [523, 2, 4, 0.55], [2054, 3, 5, 0.19], [7573, 1, 10, 2.21], [21793, 1, 5, 0.61], [10, 2, 5, 0.36], [7885, 4, 4, 0.49], [3891, 1, 4, 0.2], [10149, 3, 17, 1.21], [75, 2, 5, 1.25], [20927, 1, 4, 1.26], [61, 3, 4, 1.23], [5208, 3, 5, 0.19], [997, 2, 5, 1.01], [3, 2, 5, 0.62], [9491, 21, 17, 0.22], [12721, 2, 6, 1.46], [5165, 2, 5, 1.11], [35, 1, 5, 1.54], [83, 2, 4, 0.45], [998, 2, 4, 0.56], [22247, 2, 4, 1.14], [33, 1, 4, 1.18], [996, 2, 4, 0.35], [346, 3, 4, 1.66], [7887, 4, 4, 0.97], [972, 3, 5, 0.75], [5076, 1, 4, 0.96], [2805, 137, 4, 1.17], [229, 1, 4, 1.55], [6158, 2, 5, 0.2], [2424, 80, 4, 1.11], [34, 1, 4, 1.32], [13028, 3, 5, 1.36], [2912, 2, 7, 0.99], [13928, 1, 4, 1.33], [38, 1, 4, 1.38], [8898, 3, 4, 4.0], [346, 1, 4, 1.67], [76, 2, 5, 1.1], [12212, 29, 5, 0.2], [8104, 1, 4, 0.93], [2336, 3, 5, 0.5], [9690, 1, 4, 0.62], [5209, 3, 6, 0.46], [39, 1, 4, 1.35], [3495, 3, 11, 1.25], [11952, 1, 4, 0.66], [7567, 3, 4, 1.58], [2424, 29, 4, 0.66], [5946, 1, 4, 0.28], [11490, 1, 4, 0.46], [24257, 1, 4, 0.52], [9691, 1, 4, 0.9], [3048, 3, 4, 0.92], [11770, 1, 4, 1.08], [411, 2, 4, 0.85], [21798, 1, 4, 0.59], [1703, 2, 4, 1.33], [13928, 2, 4, 1.33], [632, 11, 13, 0.48], [11953, 1, 4, 0.2], [74, 1, 5, 2.78], [161, 3, 5, 1.48], [10407, 10, 6, 1.41], [22316, 3, 5, 0.35], [13023, 3, 6, 0.55], [1523, 1, 4, 0.4], [21269, 3, 4, 0.98], [10410, 10, 10, 1.92], [192, 3, 9, 1.05], [12764, 2, 6, 0.48], [214, 3, 11, 0.2], [2331, 1, 4, 0.79], [972, 1, 4, 1.01], [3430, 15, 4, 1.45], [5164, 1, 4, 1.0], [13893, 2, 4, 1.0], [1274, 1, 5, 0.3], [4076, 3, 4, 1.42], [6097, 80, 4, 1.26], [6097, 29, 4, 0.69], [11116, 1, 4, 0.56], [3576, 29, 4, 1.27], [10408, 10, 5, 1.58], [1080, 3, 4, 1.41], [1243, 2, 5, 0.88], [3047, 3, 4, 1.39], [10780, 10, 4, 1.87], [2438, 2, 6, 1.88], [8674, 2, 4, 1.9], [11813, 1, 4, 0.73], [3334, 5, 4, 1.2], [2436, 4, 5, 0.2], [305, 2, 161, 3.46], [6935, 2, 311, 6.0], [589, 2, 159, 2.45], [2778, 2, 171, 3.56], [144, 2, 176, 1.9], [8915, 2, 209, 2.94], [130, 1, 69, 1.55], [2328, 2, 165, 3.78], [6936, 2, 311, 5.9], [205, 2, 119, 2.56], [8648, 2, 243, 5.71], [2775, 2, 180, 3.42], [593, 2, 53, 3.44], [145, 2, 176, 1.82], [146, 2, 176, 2.21], [5493, 2, 119, 1.82], [11681, 2, 302, 5.82], [7036, 1, 140, 5.66], [88, 10, 652, 2.96], [2776, 2, 180, 2.9], [141, 2, 170, 3.36], [151, 1, 23, 1.62], [1446, 2, 166, 2.59], [206, 2, 101, 2.58], [990, 2, 60, 1.61], [9760, 29, 78, 3.37], [248, 1, 63, 1.88], [5491, 2, 126, 1.63], [1007, 2, 312, 1.59], [8672, 2, 323, 6.0], [142, 2, 179, 2.63], [362, 2, 154, 3.59], [2912, 1, 52, 2.59], [10993, 2, 58, 2.11], [3893, 1, 135, 3.35], [12870, 1, 152, 5.83], [5165, 1, 52, 3.0], [7886, 4, 157, 1.89], [2055, 3, 521, 2.57], [417, 2, 179, 2.63], [9372, 1, 264, 4.75], [1622, 1, 118, 1.67], [3889, 1, 135, 3.86], [523, 2, 179, 2.04], [2054, 3, 494, 3.32], [7573, 1, 378, 5.97], [21793, 1, 261, 2.56], [10, 2, 114, 3.02], [7885, 4, 29, 1.67], [3891, 1, 135, 3.4], [10149, 3, 947, 4.76], [75, 2, 160, 4.5], [61, 3, 239, 3.23], [5208, 3, 619, 2.12], [997, 2, 262, 4.96], [3, 2, 131, 3.96], [9491, 21, 2386, 3.56], [12721, 2, 311, 4.94], [5165, 2, 416, 2.81], [83, 2, 25, 2.2], [998, 2, 262, 4.14], [22247, 2, 311, 3.38], [33, 1, 39, 3.81], [996, 2, 262, 5.57]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 5, 1.09], [130, 1, 4, 0.35], [11685, 2, 4, 1.87], [8648, 2, 4, 0.71], [144, 2, 4, 1.3], [589, 2, 5, 0.2], [2327, 2, 5, 0.29], [11681, 2, 5, 1.37], [205, 2, 4, 0.37], [593, 2, 6, 0.27], [305, 2, 4, 0.51], [8915, 2, 5, 0.53], [141, 2, 4, 0.53], [8650, 2, 4, 0.77], [151, 1, 4, 0.4], [6936, 2, 6, 1.85], [2778, 2, 6, 0.2], [206, 2, 4, 0.46], [146, 2, 5, 0.82], [88, 10, 12, 0.19], [615, 2, 4, 0.37], [7036, 1, 4, 1.48], [1446, 2, 4, 0.9], [990, 2, 4, 0.36], [362, 2, 4, 0.5], [8853, 2, 5, 1.45], [417, 2, 4, 0.4], [248, 1, 4, 0.39], [2055, 3, 6, 1.98], [523, 2, 5, 0.53], [3893, 1, 4, 0.43], [12870, 1, 4, 1.42], [142, 2, 4, 0.4], [12350, 1, 4, 1.24], [2057, 3, 5, 1.78], [3889, 1, 5, 0.35], [7084, 3, 5, 1.07], [20927, 1, 4, 0.86], [7005, 1, 4, 0.67], [997, 2, 6, 0.78], [12349, 1, 4, 2.59], [21793, 1, 4, 1.34], [3891, 1, 5, 0.28], [61, 3, 4, 0.98], [7885, 4, 5, 0.52], [5165, 1, 4, 0.65], [6158, 2, 7, 0.2], [8672, 2, 5, 0.73], [5165, 2, 5, 0.65], [9491, 21, 14, 0.3], [2912, 1, 4, 0.87], [98, 11, 10, 0.68], [972, 3, 4, 1.77], [411, 2, 4, 0.9], [9372, 1, 4, 0.97], [10388, 2, 4, 0.6], [214, 3, 11, 0.2], [33, 1, 4, 2.08], [410, 1, 4, 0.8], [7886, 4, 5, 0.24], [13928, 1, 4, 1.1], [7567, 3, 4, 0.96], [9081, 3, 10, 0.8], [3981, 3, 13, 1.15], [22316, 3, 5, 0.51], [83, 2, 4, 0.42], [22247, 2, 4, 1.1], [336, 15, 4, 0.92], [308, 1, 4, 1.32], [2912, 2, 6, 2.03], [10631, 2, 4, 0.42], [161, 3, 5, 1.77], [229, 1, 4, 1.32], [5946, 1, 4, 0.38], [11953, 1, 4, 0.55], [10780, 10, 4, 1.74], [22317, 3, 6, 0.51], [6497, 1, 4, 0.22], [345, 3, 4, 0.76], [12271, 2, 4, 0.47], [3478, 2, 4, 1.0], [11767, 1, 4, 0.2], [10407, 10, 7, 1.36], [10410, 10, 6, 1.94], [9082, 3, 18, 0.83], [37, 1, 4, 1.16], [972, 1, 4, 0.5], [6097, 80, 4, 1.28], [39, 1, 4, 0.89], [8104, 1, 4, 0.38], [74, 1, 4, 2.03], [1413, 15, 4, 0.36], [34, 1, 4, 0.93], [82, 2, 4, 0.66], [7704, 2, 4, 1.2], [3048, 3, 4, 0.46], [24257, 1, 5, 1.38], [2331, 1, 4, 0.97], [192, 3, 10, 0.72], [335, 3, 9, 1.1], [152, 21, 4, 0.34], [38, 1, 4, 0.66], [9971, 2, 4, 0.72], [12338, 29, 4, 0.2], [9, 1, 4, 0.45], [4253, 1, 4, 0.59], [1523, 1, 4, 0.44], [45, 2, 5, 2.7], [12721, 2, 4, 0.97], [11510, 3, 5, 0.5], [6097, 29, 4, 1.28], [10936, 2, 4, 0.45], [8673, 2, 4, 2.14], [2805, 137, 4, 0.58], [10093, 3, 9, 0.92], [1080, 3, 4, 0.37], [7007, 1, 4, 1.21], [12764, 2, 5, 0.43], [3047, 3, 4, 2.46], [12212, 29, 4, 0.49], [7705, 2, 4, 1.2], [1895, 3, 4, 1.83], [8659, 1, 4, 0.91], [7706, 2, 4, 1.2], [9965, 2, 4, 2.42], [6496, 1, 4, 0.46], [8676, 2, 4, 0.49], [11812, 1, 4, 0.47], [201, 3, 4, 1.36], [2424, 80, 4, 1.31], [8635, 3, 4, 0.98], [4203, 1, 4, 0.54], [1703, 2, 4, 0.83], [3475, 2, 4, 1.08], [2438, 2, 5, 0.53], [6935, 2, 291, 5.01], [130, 1, 64, 1.48], [11685, 2, 275, 5.8], [8648, 2, 228, 3.76], [144, 2, 164, 3.31], [589, 2, 154, 3.05], [2327, 2, 154, 3.18], [11681, 2, 275, 5.79], [205, 2, 118, 1.55], [593, 2, 232, 3.21], [305, 2, 151, 3.38], [8915, 2, 206, 1.74], [141, 2, 158, 4.03], [8650, 2, 228, 3.3], [151, 1, 48, 1.53], [6936, 2, 291, 6.0], [2778, 2, 159, 3.51], [206, 2, 117, 2.38], [146, 2, 155, 4.01], [88, 10, 582, 3.29], [615, 2, 118, 2.34], [7036, 1, 131, 4.72], [1446, 2, 163, 2.54], [990, 2, 57, 1.5], [362, 2, 144, 3.36], [8853, 2, 291, 4.82], [417, 2, 167, 1.74], [248, 1, 59, 1.56], [2055, 3, 467, 5.86], [523, 2, 158, 3.5], [3893, 1, 135, 1.64], [12870, 1, 140, 5.64], [142, 2, 167, 1.74], [12350, 1, 658, 3.19], [2057, 3, 467, 5.97], [3889, 1, 128, 2.56], [7084, 3, 133, 3.88], [20927, 1, 80, 2.6], [7005, 1, 85, 2.1], [997, 2, 244, 3.44], [12349, 1, 658, 5.8], [21793, 1, 210, 3.39], [3891, 1, 128, 2.3], [61, 3, 211, 3.42], [7885, 4, 34, 1.75], [5165, 1, 51, 2.95], [6158, 2, 266, 3.69], [8672, 2, 294, 4.83], [5165, 2, 409, 2.97], [9491, 21, 2274, 2.79], [2912, 1, 52, 2.48], [98, 11, 894, 2.03], [411, 2, 111, 2.54], [9372, 1, 247, 5.04], [10388, 2, 237, 1.97], [214, 3, 673, 1.74], [410, 1, 37, 3.17], [13928, 1, 50, 2.99], [7567, 3, 71, 3.74], [9081, 3, 520, 2.21], [3981, 3, 1651, 4.11], [22316, 3, 323, 2.92], [83, 2, 51, 2.21], [22247, 2, 308, 2.92], [336, 15, 110, 2.58]]</t>
+  </si>
+  <si>
+    <t>[[326, 2, 5, 0.22], [6935, 2, 9, 0.72], [362, 2, 5, 0.95], [2049, 3, 10, 0.2], [589, 2, 6, 0.2], [141, 2, 5, 0.54], [75, 2, 5, 0.74], [1776, 1, 4, 0.58], [8672, 2, 6, 0.72], [20252, 2, 4, 0.2], [205, 2, 4, 0.46], [7886, 4, 4, 0.41], [2778, 2, 5, 0.2], [1777, 1, 4, 0.93], [305, 2, 4, 0.23], [11681, 2, 5, 2.58], [593, 2, 7, 0.2], [8648, 2, 5, 0.77], [6936, 2, 5, 1.27], [2328, 2, 5, 0.2], [1007, 2, 5, 0.37], [88, 10, 12, 0.33], [83, 2, 4, 0.5], [5151, 2, 4, 0.9], [8650, 2, 5, 1.15], [412, 1, 4, 0.91], [345, 3, 4, 0.57], [2991, 3, 4, 2.17], [22247, 2, 4, 0.97], [361, 2, 4, 0.49], [144, 2, 4, 0.5], [57, 1, 6, 0.2], [201, 3, 5, 0.57], [21793, 1, 4, 1.03], [10149, 3, 15, 1.32], [45, 2, 5, 1.12], [3478, 2, 4, 0.45], [146, 2, 5, 0.56], [2054, 3, 5, 1.34], [7004, 1, 5, 0.47], [12721, 2, 6, 0.97], [167, 3, 5, 1.09], [2057, 3, 5, 1.62], [413, 1, 4, 0.73], [10825, 21, 8, 1.17], [6158, 2, 5, 0.87], [74, 1, 4, 0.84], [168, 3, 6, 0.74], [308, 1, 4, 0.72], [346, 1, 4, 0.2], [2055, 3, 4, 0.8], [10, 2, 4, 0.42], [7036, 1, 4, 1.96], [13028, 3, 4, 0.5], [3495, 3, 15, 0.92], [335, 3, 13, 0.4], [432, 3, 4, 0.39], [5081, 2, 5, 0.2], [7887, 4, 5, 0.4], [12870, 1, 4, 2.58], [214, 3, 9, 0.42], [8649, 2, 4, 1.4], [79, 1, 4, 0.2], [410, 1, 4, 0.8], [1492, 1, 4, 0.2], [3889, 1, 5, 0.2], [145, 2, 4, 0.2], [9827, 3, 4, 0.2], [3893, 1, 5, 0.2], [1504, 2, 4, 0.2], [5208, 3, 6, 0.19], [95, 3, 13, 0.86], [13260, 29, 4, 0.85], [5812, 3, 5, 1.22], [23, 1, 4, 1.51], [94, 4, 4, 0.81], [411, 2, 4, 0.31], [7005, 1, 4, 0.49], [3891, 1, 4, 0.2], [998, 2, 4, 0.69], [25, 1, 4, 1.51], [21269, 3, 4, 3.75], [7567, 3, 4, 1.62], [10574, 3, 5, 0.43], [5086, 1, 6, 1.11], [1243, 2, 4, 1.13], [9069, 1, 4, 1.62], [2878, 1, 5, 1.57], [997, 2, 4, 1.37], [11954, 1, 5, 0.48], [9691, 1, 4, 1.9], [856, 1, 4, 0.23], [11914, 1, 5, 0.2], [20927, 1, 4, 0.61], [1703, 2, 4, 1.38], [5660, 2, 5, 2.37], [5584, 3, 5, 0.44], [952, 4, 4, 2.64], [5209, 3, 5, 0.19], [9081, 3, 10, 1.03], [8898, 3, 5, 2.67], [996, 2, 4, 1.37], [1070, 7, 8, 0.64], [346, 3, 5, 0.64], [1622, 1, 5, 0.35], [8676, 2, 4, 0.97], [12661, 1, 4, 2.35], [23961, 3, 4, 2.68], [5513, 2, 4, 0.52], [1091, 1, 4, 0.2], [22317, 3, 6, 0.51], [8274, 3, 5, 1.09], [13034, 3, 6, 1.01], [11811, 1, 5, 1.0], [24, 1, 5, 0.95], [1519, 3, 14, 0.22], [27, 1, 4, 1.51], [8674, 2, 6, 0.97], [6097, 29, 4, 0.2], [9760, 29, 4, 0.2], [4203, 1, 5, 0.53], [6097, 80, 4, 0.41], [10529, 29, 4, 1.44], [82, 2, 4, 0.35], [1413, 15, 4, 0.37], [995, 2, 4, 0.98], [9082, 3, 18, 0.92], [20498, 3, 6, 1.76], [66, 1, 4, 0.42], [2104, 3, 6, 1.63], [6098, 80, 4, 1.15], [9372, 1, 4, 0.42], [6098, 29, 4, 0.35], [34, 1, 4, 0.47], [326, 2, 96, 1.71], [6935, 2, 278, 4.7], [362, 2, 139, 3.93], [2049, 3, 539, 2.4], [589, 2, 152, 1.4], [141, 2, 152, 3.14], [75, 2, 145, 4.02], [1776, 1, 107, 3.22], [8672, 2, 281, 3.06], [20252, 2, 92, 1.75], [205, 2, 113, 1.61], [7886, 4, 141, 2.29], [2778, 2, 153, 3.21], [1777, 1, 107, 3.88], [305, 2, 145, 2.78], [11681, 2, 260, 6.0], [593, 2, 119, 2.98], [8648, 2, 218, 5.36], [6936, 2, 278, 4.83], [2328, 2, 148, 3.09], [1007, 2, 281, 1.71], [88, 10, 557, 4.5], [83, 2, 53, 1.86], [5151, 2, 26, 2.64], [8650, 2, 218, 5.4], [412, 1, 82, 3.83], [345, 3, 315, 1.78], [2991, 3, 156, 5.79], [22247, 2, 296, 3.08], [361, 2, 152, 1.84], [144, 2, 159, 2.12], [57, 1, 84, 2.78], [201, 3, 315, 1.68], [21793, 1, 232, 5.78], [10149, 3, 853, 4.91], [45, 2, 108, 4.8], [3478, 2, 74, 1.77], [146, 2, 151, 3.76], [2054, 3, 488, 3.9], [7004, 1, 78, 2.43], [12721, 2, 296, 2.46], [167, 3, 224, 3.97], [2057, 3, 463, 4.1], [413, 1, 90, 2.74], [10825, 21, 675, 2.78], [6158, 2, 270, 3.55], [74, 1, 198, 4.67], [168, 3, 399, 3.53], [308, 1, 175, 3.12], [346, 1, 150, 2.96], [2055, 3, 488, 2.59], [10, 2, 55, 2.7], [7036, 1, 125, 5.53], [13028, 3, 145, 3.08], [3495, 3, 950, 3.74], [432, 3, 297, 2.51], [5081, 2, 189, 3.15], [7887, 4, 138, 1.67], [12870, 1, 135, 6.0], [214, 3, 637, 1.67], [8649, 2, 218, 5.12], [79, 1, 47, 2.0], [410, 1, 102, 2.89], [1492, 1, 39, 1.88], [3889, 1, 121, 3.86], [145, 2, 151, 1.73]]</t>
+  </si>
+  <si>
+    <t>[[589, 2, 6, 0.2], [88, 10, 12, 0.19], [2327, 2, 4, 0.52], [8915, 2, 5, 0.21], [6935, 2, 6, 1.69], [2778, 2, 5, 0.2], [305, 2, 5, 0.45], [2328, 2, 4, 0.26], [130, 1, 4, 0.36], [5493, 2, 5, 0.2], [616, 2, 4, 0.3], [326, 2, 5, 0.97], [6936, 2, 5, 1.66], [8648, 2, 4, 1.7], [8650, 2, 5, 2.46], [1446, 2, 4, 0.2], [7004, 1, 4, 0.99], [205, 2, 4, 0.44], [2049, 3, 5, 0.47], [144, 2, 5, 1.04], [10, 2, 5, 0.42], [151, 1, 4, 0.51], [990, 2, 4, 0.39], [7036, 1, 4, 1.2], [3893, 1, 5, 0.2], [146, 2, 5, 1.32], [7885, 4, 4, 0.49], [141, 2, 4, 0.92], [3891, 1, 4, 0.2], [206, 2, 4, 0.46], [75, 2, 5, 0.99], [2055, 3, 4, 0.99], [362, 2, 4, 0.52], [10993, 2, 4, 0.45], [21793, 1, 4, 0.86], [5208, 3, 6, 0.19], [3889, 1, 6, 0.2], [7084, 3, 4, 1.57], [11234, 2, 4, 1.4], [7005, 1, 4, 0.68], [3980, 4, 6, 1.21], [12870, 1, 4, 1.93], [2912, 1, 4, 0.77], [145, 2, 4, 1.5], [5165, 1, 4, 0.65], [10149, 3, 13, 1.47], [8672, 2, 4, 2.86], [9760, 29, 4, 0.2], [998, 2, 4, 0.31], [20927, 1, 4, 1.68], [997, 2, 4, 1.02], [2436, 4, 4, 0.43], [417, 2, 4, 0.92], [2424, 80, 5, 0.86], [7887, 4, 4, 0.97], [6158, 2, 4, 0.2], [3, 2, 4, 0.37], [5076, 1, 5, 0.56], [632, 11, 13, 0.48], [229, 1, 5, 0.91], [972, 3, 5, 0.51], [3495, 3, 13, 1.25], [74, 1, 4, 1.22], [9491, 21, 10, 1.33], [523, 2, 4, 0.55], [11770, 1, 4, 1.08], [346, 3, 5, 1.66], [11953, 1, 4, 0.45], [5165, 2, 5, 0.65], [7573, 1, 9, 2.46], [12721, 2, 4, 0.6], [996, 2, 4, 1.02], [22316, 3, 5, 0.35], [2423, 80, 6, 1.72], [11772, 1, 4, 1.08], [9372, 1, 4, 1.17], [3981, 3, 11, 0.51], [6497, 1, 4, 0.49], [24257, 1, 4, 0.48], [2912, 2, 7, 2.03], [11952, 1, 4, 0.66], [2438, 2, 5, 1.88], [12229, 2, 4, 0.36], [823, 1, 4, 0.65], [361, 2, 4, 0.92], [2424, 29, 4, 0.37], [8898, 3, 4, 4.0], [3975, 4, 5, 1.26], [346, 1, 4, 1.67], [1622, 1, 4, 0.49], [6496, 1, 4, 1.2], [192, 3, 9, 1.05], [10407, 10, 8, 1.18], [3900, 3, 4, 0.71], [5209, 3, 6, 0.19], [2805, 137, 4, 1.0], [9081, 3, 7, 0.66], [5946, 1, 4, 0.28], [33, 1, 4, 0.47], [11812, 1, 4, 0.47], [335, 3, 9, 0.62], [1703, 2, 4, 0.5], [7567, 3, 4, 1.58], [12764, 2, 5, 0.43], [10388, 2, 4, 0.61], [11490, 1, 4, 0.23], [37, 1, 4, 0.47], [8676, 2, 4, 2.86], [6097, 80, 4, 0.66], [972, 1, 4, 1.01], [202, 2, 4, 0.88], [220, 4, 4, 1.31], [1519, 3, 10, 0.39], [22247, 2, 4, 1.3], [23611, 3, 5, 0.5], [161, 3, 5, 1.48], [35, 1, 4, 0.47], [38, 1, 4, 0.47], [13893, 2, 4, 1.0], [2104, 3, 9, 1.26], [11814, 1, 4, 0.23], [95, 3, 12, 0.42], [83, 2, 4, 0.46], [4232, 80, 4, 1.82], [1895, 3, 4, 1.65], [11813, 1, 4, 0.73], [11116, 1, 4, 0.56], [12212, 29, 4, 0.27], [8635, 3, 4, 0.87], [788, 2, 5, 0.2], [8104, 1, 4, 0.93], [12979, 25, 7, 0.72], [76, 2, 4, 0.51], [1309, 1, 4, 0.46], [13928, 1, 4, 1.33], [10386, 2, 4, 0.77], [589, 2, 168, 2.97], [88, 10, 619, 3.42], [2327, 2, 165, 3.59], [8915, 2, 209, 2.94], [6935, 2, 311, 6.0], [2778, 2, 171, 3.56], [305, 2, 161, 3.46], [2328, 2, 165, 4.03], [130, 1, 69, 1.55], [5493, 2, 119, 1.82], [616, 2, 120, 2.15], [326, 2, 21, 3.65], [6936, 2, 311, 5.9], [8648, 2, 256, 4.13], [8650, 2, 243, 6.0], [1446, 2, 166, 3.73], [205, 2, 126, 1.71], [2049, 3, 126, 1.66], [144, 2, 167, 3.93], [151, 1, 23, 1.62], [990, 2, 60, 1.61], [7036, 1, 140, 5.66], [3893, 1, 135, 3.35], [146, 2, 167, 4.04], [7885, 4, 116, 1.77], [141, 2, 179, 2.63], [3891, 1, 135, 3.4], [206, 2, 125, 1.88], [75, 2, 160, 4.5], [2055, 3, 549, 2.77], [362, 2, 97, 3.74], [10993, 2, 62, 1.73], [21793, 1, 261, 2.52], [5208, 3, 619, 2.12], [3889, 1, 135, 3.86], [7084, 3, 141, 4.19], [11234, 2, 212, 3.56], [7005, 1, 92, 2.17], [3980, 4, 528, 4.52], [12870, 1, 152, 5.83], [2912, 1, 52, 3.74], [145, 2, 53, 3.79], [5165, 1, 55, 2.93], [10149, 3, 947, 4.76], [8672, 2, 323, 6.0], [9760, 29, 78, 3.4], [998, 2, 262, 4.14], [997, 2, 262, 3.36], [2436, 4, 126, 2.44], [417, 2, 179, 2.63], [2424, 80, 186, 3.86], [6158, 2, 285, 2.64], [3, 2, 131, 3.96], [5076, 1, 142, 3.04], [632, 11, 949, 1.71], [229, 1, 89, 4.03], [972, 3, 650, 3.9], [3495, 3, 1056, 4.26], [74, 1, 231, 3.2], [9491, 21, 2512, 3.93], [523, 2, 179, 2.04], [11770, 1, 230, 3.85], [346, 3, 644, 3.44], [11953, 1, 218, 1.96]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 6, 1.34], [305, 2, 4, 0.51], [615, 2, 4, 0.2], [2778, 2, 6, 0.2], [6936, 2, 5, 1.35], [5493, 2, 4, 0.2], [205, 2, 6, 0.2], [130, 1, 4, 0.35], [616, 2, 5, 0.22], [88, 10, 11, 0.19], [144, 2, 5, 0.47], [8648, 2, 5, 0.71], [2049, 3, 10, 0.2], [11681, 2, 5, 1.86], [8915, 2, 5, 0.53], [589, 2, 5, 0.2], [326, 2, 5, 0.7], [7036, 1, 4, 1.48], [8650, 2, 6, 0.96], [2327, 2, 5, 0.29], [593, 2, 6, 0.27], [3893, 1, 4, 0.43], [141, 2, 6, 0.53], [206, 2, 4, 0.65], [7004, 1, 4, 0.94], [151, 1, 4, 0.4], [3891, 1, 4, 0.28], [248, 1, 4, 0.39], [143, 2, 5, 1.53], [3980, 4, 6, 1.19], [146, 2, 5, 1.32], [2050, 3, 6, 1.69], [990, 2, 4, 0.36], [2055, 3, 5, 1.74], [7885, 4, 5, 0.2], [7886, 4, 4, 0.4], [2054, 3, 6, 1.86], [12870, 1, 5, 1.4], [362, 2, 4, 0.82], [8672, 2, 5, 0.73], [10993, 2, 4, 0.63], [3975, 4, 4, 1.39], [2057, 3, 6, 1.78], [5165, 1, 4, 0.65], [21793, 1, 4, 1.09], [13028, 3, 4, 0.62], [7084, 3, 4, 1.07], [145, 2, 4, 1.3], [2991, 3, 4, 0.88], [523, 2, 4, 1.03], [75, 2, 4, 0.46], [7005, 1, 4, 0.72], [3982, 3, 14, 1.18], [3981, 3, 13, 1.42], [33, 1, 5, 1.58], [142, 2, 6, 0.52], [20927, 1, 4, 1.17], [2912, 1, 4, 1.16], [6158, 2, 6, 0.2], [7887, 4, 5, 1.2], [5165, 2, 5, 0.92], [82, 2, 4, 0.66], [417, 2, 4, 0.4], [35, 1, 5, 1.58], [22316, 3, 6, 0.51], [214, 3, 11, 0.2], [11953, 1, 6, 0.2], [6497, 1, 4, 0.22], [61, 3, 4, 1.41], [229, 1, 4, 1.5], [192, 3, 11, 0.77], [11772, 1, 4, 1.28], [950, 1, 4, 0.38], [996, 2, 6, 1.47], [7567, 3, 4, 0.71], [11769, 1, 4, 0.96], [5946, 1, 4, 0.28], [346, 3, 5, 1.27], [6496, 1, 4, 0.46], [4176, 4, 5, 1.31], [972, 3, 5, 1.77], [39, 1, 4, 0.51], [74, 1, 5, 2.03], [411, 2, 4, 0.9], [7573, 1, 5, 0.97], [8677, 3, 4, 1.15], [12721, 2, 4, 0.97], [37, 1, 4, 0.66], [4253, 1, 4, 0.48], [2436, 4, 5, 0.44], [22317, 3, 5, 0.26], [2912, 2, 5, 0.88], [2104, 3, 6, 1.46], [1413, 15, 4, 0.2], [12212, 29, 4, 0.24], [336, 15, 5, 0.92], [1277, 1, 4, 0.65], [201, 3, 5, 0.51], [345, 3, 4, 1.01], [11085, 2, 6, 1.53], [21269, 3, 4, 3.24], [13023, 3, 5, 1.26], [12271, 2, 5, 0.84], [823, 1, 4, 0.56], [3, 2, 5, 0.71], [8673, 2, 4, 2.14], [22247, 2, 5, 1.39], [38, 1, 4, 0.66], [8676, 2, 4, 0.98], [10631, 2, 4, 1.48], [9, 1, 4, 0.2], [2805, 137, 4, 0.58], [10408, 10, 5, 1.64], [3577, 25, 4, 0.53], [3048, 3, 5, 1.17], [10388, 2, 4, 0.6], [1414, 15, 4, 0.2], [10936, 2, 4, 0.45], [13928, 1, 4, 1.1], [9081, 3, 10, 0.8], [11812, 1, 4, 0.47], [346, 1, 5, 1.27], [20498, 3, 5, 0.4], [9491, 21, 10, 0.6], [13244, 1, 4, 0.45], [4076, 3, 5, 1.19], [161, 3, 6, 1.5], [11814, 1, 4, 0.48], [9372, 1, 4, 0.97], [10407, 10, 6, 1.94], [12764, 2, 8, 0.33], [491, 10, 5, 1.64], [1523, 1, 4, 0.44], [972, 1, 4, 0.75], [11089, 1, 4, 1.73], [3576, 25, 4, 0.75], [6935, 2, 291, 5.26], [305, 2, 151, 3.38], [615, 2, 118, 1.48], [2778, 2, 159, 3.51], [6936, 2, 291, 5.64], [5493, 2, 112, 2.04], [205, 2, 106, 2.53], [130, 1, 64, 1.48], [616, 2, 112, 1.95], [88, 10, 582, 3.29], [144, 2, 155, 3.9], [8648, 2, 228, 5.15], [2049, 3, 555, 3.08], [11681, 2, 275, 5.79], [8915, 2, 206, 1.74], [589, 2, 154, 3.05], [326, 2, 95, 2.99], [7036, 1, 131, 4.72], [8650, 2, 228, 4.92], [2327, 2, 154, 3.43], [593, 2, 232, 3.21], [3893, 1, 135, 1.64], [141, 2, 158, 4.03], [206, 2, 111, 2.11], [7004, 1, 80, 2.62], [151, 1, 48, 1.53], [3891, 1, 128, 2.3], [248, 1, 59, 1.56], [143, 2, 153, 3.39], [3980, 4, 492, 4.82], [146, 2, 155, 4.01], [2050, 3, 467, 5.77], [990, 2, 57, 1.5], [2055, 3, 467, 5.86], [2054, 3, 467, 6.0], [12870, 1, 140, 6.0], [362, 2, 152, 2.39], [8672, 2, 294, 4.83], [10993, 2, 55, 2.37], [3975, 4, 518, 3.58], [2057, 3, 467, 5.97], [5165, 1, 51, 2.95], [21793, 1, 210, 3.22], [13028, 3, 159, 2.06], [7084, 3, 133, 3.88], [145, 2, 155, 3.79], [2991, 3, 171, 3.51], [523, 2, 158, 3.5], [75, 2, 159, 1.7], [7005, 1, 80, 2.2], [3982, 3, 809, 4.78], [3981, 3, 1651, 4.49], [33, 1, 53, 4.09], [142, 2, 158, 3.39], [2912, 1, 49, 3.04], [6158, 2, 266, 3.69], [5165, 2, 388, 2.41], [82, 2, 61, 2.08], [417, 2, 167, 1.74], [35, 1, 40, 3.93], [22316, 3, 323, 2.92], [214, 3, 673, 2.12], [11953, 1, 206, 2.84], [6497, 1, 38, 1.95]]</t>
+  </si>
+  <si>
+    <t>[[141, 2, 5, 0.2], [362, 2, 4, 0.57], [8650, 2, 4, 1.21], [5491, 2, 4, 0.2], [361, 2, 4, 0.4], [5493, 2, 5, 0.2], [589, 2, 5, 0.2], [8672, 2, 7, 0.66], [11685, 2, 4, 0.42], [417, 2, 4, 0.37], [6935, 2, 11, 1.06], [205, 2, 4, 0.2], [11681, 2, 5, 2.04], [11838, 2, 5, 0.2], [12721, 2, 5, 0.48], [248, 1, 4, 0.51], [11837, 2, 4, 0.58], [142, 2, 4, 0.38], [6936, 2, 5, 1.25], [2778, 2, 6, 0.2], [1446, 2, 4, 0.2], [8676, 2, 4, 0.73], [615, 2, 4, 0.74], [21793, 1, 4, 1.01], [305, 2, 5, 0.98], [593, 2, 6, 0.2], [22247, 2, 4, 1.0], [11835, 2, 4, 0.48], [616, 2, 5, 0.23], [411, 2, 4, 0.2], [990, 2, 4, 0.38], [8675, 2, 6, 0.98], [10574, 3, 6, 1.5], [145, 2, 4, 1.17], [1429, 2, 4, 0.39], [6158, 2, 6, 0.89], [10149, 3, 13, 0.75], [3495, 3, 16, 1.03], [2050, 3, 6, 0.34], [146, 2, 5, 0.49], [88, 10, 11, 0.95], [2054, 3, 6, 0.51], [75, 2, 4, 1.68], [10993, 2, 4, 0.4], [7885, 4, 5, 0.69], [144, 2, 4, 1.17], [7705, 2, 5, 0.9], [2424, 29, 4, 1.98], [346, 3, 6, 1.03], [2423, 80, 4, 1.56], [2859, 15, 4, 0.35], [7704, 2, 5, 0.9], [61, 3, 4, 0.36], [2423, 29, 4, 1.53], [9126, 1, 4, 1.13], [335, 3, 10, 0.49], [5165, 1, 4, 0.65], [2424, 80, 4, 1.98], [13028, 3, 4, 0.37], [201, 3, 5, 0.76], [346, 1, 4, 0.88], [214, 3, 9, 1.24], [60, 3, 5, 1.93], [1519, 3, 12, 0.22], [13023, 3, 5, 1.51], [308, 1, 5, 1.49], [1414, 15, 4, 0.42], [13034, 3, 5, 1.13], [2703, 3, 4, 0.96], [345, 3, 4, 0.49], [6494, 1, 4, 0.46], [7004, 1, 4, 0.66], [410, 1, 4, 0.52], [11770, 1, 4, 0.7], [7706, 2, 5, 0.8], [432, 3, 4, 1.01], [5208, 3, 5, 0.48], [3430, 15, 4, 0.35], [6952, 1, 4, 0.73], [13928, 1, 4, 1.15], [12373, 1, 5, 1.45], [20927, 1, 4, 1.05], [11954, 1, 4, 0.44], [94, 4, 4, 1.96], [1886, 2, 4, 0.44], [2331, 1, 4, 0.79], [3893, 1, 4, 0.52], [3891, 1, 4, 0.52], [114, 3, 4, 0.2], [11811, 1, 4, 0.38], [105, 3, 4, 0.48], [7886, 4, 6, 0.69], [3981, 3, 8, 0.51], [1274, 1, 4, 0.82], [952, 4, 4, 1.87], [13033, 3, 4, 0.5], [944, 15, 4, 0.37], [9690, 1, 4, 1.08], [11089, 1, 4, 1.16], [3, 2, 4, 2.0], [1490, 1, 4, 0.44], [1309, 1, 4, 0.73], [5946, 1, 4, 0.52], [5584, 3, 4, 1.16], [8898, 3, 4, 0.71], [5812, 3, 4, 1.51], [5733, 2, 5, 1.37], [7708, 2, 4, 1.05], [10407, 10, 6, 1.9], [10410, 10, 6, 1.9], [95, 3, 8, 2.52], [3028, 3, 4, 0.44], [3478, 2, 4, 1.0], [8274, 3, 4, 1.45], [7703, 2, 4, 1.05], [9342, 2, 4, 0.49], [10398, 2, 4, 1.36], [20555, 2, 4, 0.78], [3889, 1, 4, 0.52], [21003, 2, 4, 0.72], [13258, 29, 4, 1.02], [22558, 3, 4, 0.88], [9082, 3, 14, 0.83], [3980, 4, 4, 1.4], [10406, 10, 7, 1.73], [6497, 1, 4, 1.69], [20969, 3, 4, 0.86], [1339, 3, 10, 0.47], [963, 3, 4, 0.72], [192, 3, 13, 0.92], [5165, 2, 5, 0.65], [20196, 2, 4, 0.72], [10516, 3, 4, 1.94], [11603, 2, 4, 1.37], [141, 2, 177, 3.21], [362, 2, 170, 2.41], [8650, 2, 250, 5.1], [5491, 2, 123, 1.83], [361, 2, 187, 1.73], [5493, 2, 123, 2.24], [589, 2, 181, 2.16], [8672, 2, 323, 4.69], [11685, 2, 317, 3.77], [417, 2, 187, 1.67], [6935, 2, 319, 6.0], [205, 2, 123, 1.8], [11681, 2, 317, 6.0], [11838, 2, 303, 3.8], [12721, 2, 322, 4.24], [248, 1, 65, 1.94], [11837, 2, 319, 2.08], [142, 2, 187, 1.69], [6936, 2, 319, 5.36], [2778, 2, 178, 3.62], [1446, 2, 171, 2.42], [8676, 2, 340, 2.67], [615, 2, 130, 2.38], [21793, 1, 282, 5.05], [305, 2, 167, 3.68], [593, 2, 257, 1.75], [22247, 2, 339, 2.89], [11835, 2, 319, 1.88], [616, 2, 123, 2.27], [411, 2, 122, 2.4], [990, 2, 62, 1.69], [8675, 2, 323, 4.72], [10574, 3, 568, 4.89], [145, 2, 181, 3.21], [1429, 2, 181, 1.86], [6158, 2, 294, 3.33], [10149, 3, 1044, 2.45], [2050, 3, 542, 2.92], [146, 2, 171, 2.68], [88, 10, 632, 4.5], [2054, 3, 127, 2.99], [75, 2, 170, 4.19], [10993, 2, 60, 2.43], [144, 2, 181, 3.21], [7705, 2, 199, 3.7], [2424, 29, 40, 4.77], [346, 3, 682, 4.23], [2423, 80, 207, 3.96], [2859, 15, 82, 2.36], [7704, 2, 199, 3.7], [61, 3, 249, 1.65], [2423, 29, 44, 4.18], [9126, 1, 83, 3.14], [335, 3, 1555, 1.91], [5165, 1, 56, 2.94], [2424, 80, 198, 4.77], [13028, 3, 174, 2.92], [201, 3, 340, 4.48], [346, 1, 179, 3.77], [214, 3, 253, 4.28], [60, 3, 952, 4.46], [1519, 3, 1845, 2.61], [13023, 3, 703, 3.62], [308, 1, 190, 5.0], [1414, 15, 117, 1.77], [13034, 3, 667, 3.88]]</t>
+  </si>
+  <si>
+    <t>[[2778, 2, 8, 0.2], [6936, 2, 4, 1.17], [8672, 2, 6, 0.66], [305, 2, 5, 0.23], [615, 2, 4, 0.2], [145, 2, 4, 1.17], [12721, 2, 6, 0.72], [130, 1, 4, 0.36], [2327, 2, 5, 0.2], [361, 2, 4, 0.4], [2328, 2, 5, 0.26], [146, 2, 4, 0.87], [8675, 2, 4, 0.73], [11681, 2, 5, 0.71], [141, 2, 4, 0.4], [362, 2, 4, 0.69], [205, 2, 5, 0.2], [5491, 2, 4, 0.2], [8673, 2, 6, 0.73], [8676, 2, 5, 0.6], [144, 2, 5, 1.17], [8650, 2, 5, 1.28], [417, 2, 4, 0.4], [11837, 2, 5, 0.3], [3, 2, 5, 0.41], [6097, 80, 5, 2.36], [2423, 29, 4, 1.19], [6497, 1, 4, 0.2], [6097, 29, 4, 2.36], [11836, 2, 6, 0.2], [990, 2, 4, 0.45], [2424, 29, 4, 0.37], [593, 2, 5, 1.55], [6098, 80, 4, 2.59], [523, 2, 4, 0.76], [11739, 2, 4, 0.59], [944, 15, 4, 0.4], [88, 10, 9, 0.44], [10993, 2, 4, 0.52], [13260, 29, 4, 0.98], [8915, 2, 4, 0.78], [326, 2, 4, 0.5], [75, 2, 4, 1.56], [1413, 15, 4, 0.5], [10574, 3, 5, 1.08], [335, 3, 11, 1.25], [411, 2, 4, 0.92], [1339, 1, 4, 0.43], [1050, 2, 4, 0.2], [947, 15, 4, 0.51], [1339, 3, 12, 0.18], [151, 1, 4, 0.45], [6496, 1, 4, 1.31], [2859, 15, 4, 0.72], [7704, 2, 4, 1.79], [346, 1, 4, 0.43], [214, 3, 10, 1.24], [13258, 29, 4, 0.79], [345, 3, 4, 0.5], [10149, 3, 15, 0.74], [1490, 1, 4, 1.35], [346, 3, 5, 0.21], [1243, 2, 5, 0.86], [7004, 1, 4, 0.82], [11738, 2, 4, 0.94], [201, 3, 5, 1.05], [22558, 3, 7, 0.21], [432, 3, 4, 1.15], [2438, 1, 4, 0.4], [7705, 2, 4, 2.04], [5208, 3, 5, 0.54], [2912, 1, 4, 0.95], [229, 1, 4, 1.32], [61, 3, 4, 0.44], [963, 3, 4, 0.4], [10407, 10, 6, 1.9], [7706, 2, 4, 1.79], [2331, 1, 4, 1.05], [21793, 1, 4, 2.59], [13928, 1, 4, 1.15], [12229, 2, 5, 0.45], [3478, 2, 4, 1.0], [1548, 1, 4, 1.09], [2703, 3, 4, 1.97], [11844, 2, 4, 0.64], [13258, 25, 4, 0.79], [11490, 1, 4, 0.45], [114, 3, 4, 0.41], [7036, 1, 4, 0.43], [8938, 2, 4, 0.43], [9126, 1, 4, 1.19], [11687, 2, 4, 0.67], [10408, 10, 6, 1.66], [956, 2, 5, 0.57], [94, 4, 4, 1.96], [1886, 2, 4, 0.44], [410, 1, 4, 0.52], [11159, 1, 7, 0.67], [7708, 2, 5, 1.79], [2438, 2, 5, 0.53], [11690, 2, 4, 0.52], [9065, 2, 4, 0.54], [12870, 1, 4, 0.94], [9760, 29, 4, 0.92], [11161, 1, 5, 1.64], [11689, 2, 4, 0.66], [5976, 1, 4, 1.13], [7005, 1, 4, 1.06], [21781, 2, 4, 0.47], [1274, 1, 4, 1.98], [2805, 137, 5, 1.39], [20927, 1, 4, 0.47], [12373, 1, 5, 1.45], [2991, 3, 4, 2.12], [1699, 3, 4, 1.18], [5584, 3, 4, 1.16], [9209, 29, 4, 1.12], [3495, 3, 13, 1.28], [9690, 1, 4, 1.08], [7007, 1, 4, 1.28], [9239, 29, 4, 0.48], [11811, 1, 4, 0.38], [8600, 1, 4, 0.86], [9239, 25, 4, 0.48], [247, 1, 4, 1.54], [5769, 3, 6, 0.52], [9491, 21, 10, 1.75], [5076, 1, 4, 1.95], [13198, 29, 4, 0.94], [12764, 2, 6, 0.2], [9372, 1, 4, 1.74], [5869, 1, 4, 2.12], [7702, 2, 28, 1.25], [95, 3, 8, 0.42], [2778, 2, 175, 3.36], [6936, 2, 322, 5.18], [8672, 2, 324, 3.36], [305, 2, 167, 3.74], [615, 2, 123, 2.66], [145, 2, 181, 3.21], [12721, 2, 321, 4.47], [130, 1, 71, 1.65], [2327, 2, 170, 4.61], [361, 2, 185, 1.73], [2328, 2, 170, 4.64], [146, 2, 171, 4.04], [8675, 2, 342, 2.57], [11681, 2, 299, 3.49], [141, 2, 185, 1.73], [362, 2, 170, 2.54], [205, 2, 130, 1.95], [5491, 2, 121, 1.79], [8673, 2, 323, 4.83], [8676, 2, 324, 3.88], [144, 2, 171, 4.15], [8650, 2, 249, 6.0], [417, 2, 185, 1.73], [11837, 2, 304, 2.24], [3, 2, 135, 3.74], [6097, 80, 77, 6.0], [2423, 29, 44, 3.89], [6497, 1, 45, 1.56], [11836, 2, 304, 3.72], [990, 2, 21, 1.72], [2424, 29, 38, 3.3], [593, 2, 60, 3.77], [523, 2, 185, 2.42], [11739, 2, 68, 2.13], [944, 15, 12, 1.31], [88, 10, 673, 3.12], [10993, 2, 64, 1.96], [13260, 29, 81, 3.46], [8915, 2, 226, 2.46], [326, 2, 110, 1.92], [75, 2, 162, 3.96], [1413, 15, 117, 1.92], [10574, 3, 598, 3.33], [335, 3, 1428, 4.39], [411, 2, 121, 2.73], [1339, 1, 81, 2.01], [1050, 2, 30, 1.7], [947, 15, 49, 1.94], [1339, 3, 1955, 1.88], [151, 1, 26, 1.97], [6496, 1, 47, 3.48], [2859, 15, 77, 3.49], [7704, 2, 176, 5.37], [346, 1, 184, 1.79], [13258, 29, 46, 3.78], [345, 3, 357, 1.92], [10149, 3, 984, 2.7], [1490, 1, 58, 5.92], [346, 3, 699, 2.0], [1243, 2, 112, 4.28], [7004, 1, 94, 2.54], [11738, 2, 23, 2.53], [201, 3, 339, 4.27], [22558, 3, 529, 4.33], [432, 3, 339, 3.22], [2438, 1, 62, 2.95]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 6, 0.66], [141, 2, 4, 0.23], [2778, 2, 6, 0.34], [362, 2, 5, 0.48], [361, 2, 4, 0.37], [130, 1, 4, 0.36], [6935, 2, 8, 1.55], [12721, 2, 8, 1.21], [8676, 2, 5, 0.6], [2049, 3, 15, 0.2], [417, 2, 4, 0.37], [3, 2, 4, 1.22], [22247, 2, 5, 1.0], [6936, 2, 4, 0.47], [523, 2, 4, 0.41], [305, 2, 5, 0.73], [8650, 2, 4, 0.94], [2328, 2, 4, 1.04], [11739, 2, 4, 0.68], [8648, 2, 4, 1.69], [2776, 2, 4, 1.19], [2327, 2, 4, 0.39], [616, 2, 4, 1.04], [411, 2, 4, 0.37], [8674, 2, 5, 0.67], [2423, 29, 4, 1.0], [589, 2, 4, 0.9], [6497, 1, 6, 0.2], [2805, 137, 5, 0.94], [11835, 2, 4, 0.49], [6097, 80, 4, 2.11], [146, 2, 4, 1.17], [326, 2, 5, 0.66], [6097, 29, 5, 0.91], [583, 2, 4, 0.45], [2423, 80, 4, 0.94], [10149, 3, 13, 0.75], [145, 2, 4, 1.17], [11836, 2, 5, 0.54], [144, 2, 4, 1.17], [75, 2, 4, 1.56], [10574, 3, 5, 0.85], [6496, 1, 4, 1.31], [308, 1, 6, 0.54], [1413, 15, 4, 0.2], [2054, 3, 5, 0.81], [2422, 29, 4, 1.9], [1243, 2, 4, 1.06], [21793, 1, 4, 2.34], [1886, 2, 4, 0.44], [8915, 2, 4, 0.78], [944, 15, 4, 0.2], [247, 1, 4, 1.47], [1490, 1, 4, 1.35], [2859, 15, 4, 0.35], [335, 3, 11, 0.89], [1414, 15, 4, 0.48], [201, 3, 4, 0.24], [13928, 1, 4, 1.15], [3478, 2, 4, 1.0], [6158, 2, 6, 0.89], [7084, 3, 4, 0.95], [3934, 5, 7, 1.36], [11489, 1, 4, 0.41], [12526, 2, 4, 0.7], [1703, 2, 4, 0.56], [5812, 3, 4, 2.0], [11767, 1, 4, 1.1], [61, 3, 4, 0.44], [94, 4, 4, 1.04], [186, 3, 7, 0.56], [214, 3, 10, 1.24], [1519, 3, 9, 0.39], [1050, 2, 4, 0.37], [9491, 21, 10, 1.33], [11490, 1, 4, 0.35], [1309, 1, 4, 0.73], [2821, 3, 10, 0.27], [10398, 2, 4, 0.37], [5813, 3, 4, 2.0], [192, 3, 13, 1.01], [8898, 3, 4, 0.47], [8599, 1, 4, 0.37], [5811, 3, 5, 2.2], [229, 1, 4, 1.37], [11771, 1, 4, 0.82], [1699, 3, 4, 1.53], [2438, 2, 5, 0.53], [2991, 3, 5, 1.75], [3495, 3, 13, 1.28], [11769, 1, 4, 1.1], [8943, 3, 4, 0.39], [11811, 1, 4, 0.38], [1339, 3, 12, 0.18], [13928, 2, 4, 1.15], [12764, 2, 5, 0.43], [19687, 1, 4, 1.21], [7036, 1, 4, 0.43], [346, 3, 5, 0.42], [13260, 29, 4, 1.26], [22573, 2, 4, 0.99], [10124, 1, 4, 2.17], [9690, 1, 4, 1.08], [5584, 3, 4, 3.54], [3334, 5, 4, 1.1], [18964, 1, 4, 1.13], [7004, 1, 4, 0.75], [1277, 1, 4, 0.48], [2438, 1, 4, 0.4], [20927, 1, 4, 0.4], [1523, 1, 4, 1.01], [4001, 3, 9, 0.96], [11886, 2, 4, 0.75], [1701, 2, 4, 0.5], [45, 2, 4, 1.79], [11678, 1, 4, 1.44], [21269, 3, 4, 2.18], [8286, 2, 5, 0.62], [9373, 5, 4, 2.8], [10181, 26, 5, 0.46], [23031, 3, 4, 1.65], [3984, 3, 5, 0.62], [10516, 3, 4, 0.99], [11677, 1, 4, 1.53], [346, 1, 4, 0.43], [1339, 1, 4, 0.48], [3979, 3, 5, 0.88], [19924, 2, 4, 0.41], [23032, 3, 4, 1.46], [9069, 1, 4, 0.41], [9065, 2, 4, 0.54], [5976, 1, 4, 1.13], [8285, 2, 5, 0.49], [7005, 1, 4, 1.21], [8672, 2, 324, 4.66], [141, 2, 176, 3.4], [2778, 2, 175, 2.87], [362, 2, 160, 2.87], [361, 2, 186, 2.55], [130, 1, 71, 1.65], [6935, 2, 314, 6.0], [12721, 2, 323, 5.01], [8676, 2, 324, 3.88], [2049, 3, 618, 1.92], [417, 2, 186, 2.55], [3, 2, 143, 3.42], [22247, 2, 323, 4.61], [6936, 2, 331, 2.61], [523, 2, 176, 3.3], [305, 2, 166, 3.67], [8650, 2, 263, 4.15], [2328, 2, 170, 3.66], [11739, 2, 68, 2.27], [8648, 2, 263, 4.21], [2776, 2, 185, 3.25], [2327, 2, 170, 3.76], [616, 2, 120, 3.66], [411, 2, 129, 2.44], [8674, 2, 324, 2.49], [2423, 29, 44, 3.72], [589, 2, 181, 2.9], [6497, 1, 42, 3.28], [2805, 137, 212, 4.89], [11835, 2, 303, 3.22], [6097, 80, 52, 6.0], [146, 2, 181, 3.21], [326, 2, 104, 3.13], [6097, 29, 38, 3.55], [583, 2, 102, 2.56], [2423, 80, 220, 3.67], [10149, 3, 1052, 4.18], [145, 2, 181, 3.21], [11836, 2, 303, 3.32], [144, 2, 181, 3.21], [75, 2, 171, 3.96], [10574, 3, 565, 4.07], [6496, 1, 47, 3.48], [308, 1, 194, 4.19], [1413, 15, 111, 2.01], [2054, 3, 114, 3.24], [2422, 29, 44, 5.23], [1243, 2, 117, 3.0], [21793, 1, 273, 6.0], [1886, 2, 187, 1.81], [8915, 2, 226, 2.46], [944, 15, 46, 2.51], [247, 1, 103, 3.79], [1490, 1, 58, 5.92], [2859, 15, 82, 2.36], [1414, 15, 117, 1.88], [201, 3, 344, 2.12], [13928, 1, 53, 3.67], [3478, 2, 90, 2.89], [6158, 2, 294, 3.35], [7084, 3, 145, 2.79], [3934, 5, 619, 3.65], [11489, 1, 130, 1.75], [12526, 2, 325, 3.97], [1703, 2, 194, 2.63], [5812, 3, 700, 4.8]]</t>
+  </si>
+  <si>
+    <t>[[305, 2, 4, 0.2], [2328, 2, 5, 0.2], [130, 1, 4, 0.36], [8650, 2, 4, 0.46], [2778, 2, 5, 0.4], [5491, 2, 4, 0.2], [8672, 2, 7, 0.2], [143, 2, 6, 0.51], [362, 2, 4, 0.48], [145, 2, 5, 0.5], [6936, 2, 4, 1.26], [5493, 2, 5, 0.35], [361, 2, 4, 0.63], [417, 2, 4, 0.63], [11681, 2, 5, 0.71], [205, 2, 4, 0.56], [589, 2, 5, 0.2], [75, 2, 5, 0.97], [11737, 2, 4, 0.78], [146, 2, 4, 0.57], [523, 2, 4, 0.63], [12721, 2, 5, 0.48], [8853, 2, 4, 1.92], [8673, 2, 6, 0.2], [326, 2, 5, 0.85], [11835, 2, 5, 0.36], [308, 1, 5, 1.48], [8915, 2, 6, 1.14], [144, 2, 5, 0.46], [1005, 2, 4, 0.89], [8675, 2, 4, 1.2], [88, 10, 10, 0.19], [434, 2, 5, 0.3], [11739, 2, 4, 0.78], [142, 2, 4, 0.63], [8676, 2, 4, 2.16], [2424, 29, 4, 0.37], [6158, 2, 7, 0.2], [7704, 2, 4, 1.5], [2423, 29, 4, 1.19], [11738, 2, 4, 0.78], [11836, 2, 4, 0.22], [2424, 80, 4, 0.86], [1413, 15, 4, 0.2], [7705, 2, 4, 1.9], [2423, 80, 4, 0.79], [944, 15, 5, 0.2], [3, 2, 4, 0.79], [3478, 2, 4, 1.78], [7004, 1, 4, 1.31], [1414, 15, 4, 0.42], [2859, 15, 4, 1.62], [74, 1, 4, 1.09], [10149, 3, 13, 0.75], [6497, 1, 4, 0.45], [3429, 15, 4, 0.41], [10993, 2, 4, 0.4], [13928, 1, 4, 1.15], [346, 1, 4, 0.88], [18964, 1, 4, 1.13], [11919, 1, 4, 0.59], [346, 3, 5, 1.27], [60, 3, 5, 1.93], [13260, 29, 5, 1.42], [7036, 1, 4, 1.63], [94, 4, 4, 1.96], [1339, 3, 12, 0.18], [6952, 1, 4, 1.59], [3893, 1, 4, 1.35], [2991, 3, 4, 2.17], [13034, 3, 6, 0.9], [411, 2, 4, 1.01], [11089, 1, 4, 1.16], [1050, 2, 5, 0.2], [3891, 1, 4, 1.35], [1339, 1, 4, 0.43], [14037, 3, 4, 0.96], [7707, 2, 4, 1.25], [21793, 1, 4, 1.01], [563, 2, 4, 0.2], [8274, 3, 4, 0.83], [6630, 3, 4, 1.8], [3889, 1, 4, 1.35], [2912, 1, 4, 0.6], [1243, 2, 6, 0.7], [1490, 1, 4, 1.35], [7708, 2, 4, 1.5], [192, 3, 13, 1.24], [11581, 29, 4, 0.87], [9126, 1, 4, 1.25], [7886, 4, 5, 0.44], [13023, 3, 5, 0.45], [3495, 3, 13, 1.28], [5208, 3, 6, 0.23], [5940, 3, 4, 1.33], [11490, 1, 4, 0.48], [1309, 1, 4, 0.73], [1049, 2, 4, 0.2], [229, 1, 4, 1.32], [5165, 1, 4, 0.87], [22558, 3, 4, 0.88], [12229, 2, 5, 0.45], [13033, 3, 4, 0.8], [2331, 1, 4, 1.18], [201, 3, 4, 0.6], [2805, 137, 5, 1.01], [247, 1, 4, 0.37], [83, 2, 4, 0.75], [1274, 1, 4, 1.17], [6496, 1, 4, 1.55], [332, 2, 4, 0.2], [214, 3, 9, 1.24], [202, 2, 4, 0.2], [951, 4, 4, 1.56], [8898, 3, 4, 0.71], [20555, 2, 4, 0.58], [1703, 2, 4, 2.69], [9690, 1, 4, 1.08], [11770, 1, 4, 1.78], [335, 3, 10, 0.62], [942, 3, 4, 0.75], [7005, 1, 4, 1.01], [5812, 3, 4, 0.76], [114, 3, 4, 2.04], [21269, 3, 4, 4.0], [3934, 5, 7, 1.36], [8635, 3, 4, 0.83], [9827, 3, 4, 0.39], [10406, 10, 8, 1.73], [4940, 1, 4, 0.42], [186, 3, 7, 1.23], [1886, 2, 4, 0.2], [10527, 3, 8, 0.82], [10411, 10, 6, 1.79], [7885, 4, 4, 0.56], [9491, 21, 10, 1.33], [305, 2, 166, 3.17], [2328, 2, 170, 4.64], [130, 1, 71, 1.65], [8650, 2, 250, 4.6], [2778, 2, 175, 3.04], [5491, 2, 123, 2.03], [8672, 2, 319, 4.91], [143, 2, 170, 3.72], [362, 2, 169, 2.01], [145, 2, 171, 3.71], [6936, 2, 319, 5.75], [5493, 2, 130, 3.02], [361, 2, 186, 2.82], [417, 2, 186, 2.82], [11681, 2, 299, 3.49], [205, 2, 130, 2.04], [589, 2, 173, 1.81], [75, 2, 164, 4.57], [11737, 2, 68, 2.71], [146, 2, 171, 3.82], [523, 2, 186, 2.17], [12721, 2, 322, 4.26], [8853, 2, 319, 5.66], [8673, 2, 323, 4.83], [326, 2, 104, 2.86], [11835, 2, 302, 2.97], [308, 1, 201, 4.9], [8915, 2, 212, 3.94], [144, 2, 171, 3.63], [1005, 2, 67, 3.65], [8675, 2, 336, 3.6], [88, 10, 639, 4.85], [434, 2, 120, 2.22], [11739, 2, 68, 2.46], [142, 2, 186, 2.82], [8676, 2, 336, 5.12], [2424, 29, 38, 3.3], [6158, 2, 296, 3.82], [7704, 2, 198, 4.67], [2423, 29, 41, 3.35], [11738, 2, 68, 2.48], [11836, 2, 302, 3.64], [2424, 80, 191, 3.75], [1413, 15, 111, 3.12], [7705, 2, 198, 5.16], [2423, 80, 208, 3.41], [944, 15, 49, 2.34], [3, 2, 134, 4.73], [1414, 15, 117, 1.77], [74, 1, 241, 3.11], [10149, 3, 1044, 2.45], [6497, 1, 45, 1.83], [3429, 15, 63, 1.75], [10993, 2, 60, 2.43], [13928, 1, 53, 3.67], [346, 1, 179, 3.77], [18964, 1, 80, 3.14], [11919, 1, 177, 2.1], [346, 3, 682, 4.23], [60, 3, 952, 4.46], [13260, 29, 81, 4.53], [7036, 1, 144, 4.32], [94, 4, 137, 5.0], [1339, 3, 1955, 1.88]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 6, 0.87], [141, 2, 4, 0.2], [589, 2, 5, 0.2], [2327, 2, 5, 0.64], [2778, 2, 4, 0.2], [11681, 2, 10, 1.14], [6936, 2, 6, 0.44], [362, 2, 4, 0.56], [2328, 2, 5, 0.2], [205, 2, 4, 0.47], [130, 1, 4, 0.36], [2775, 2, 4, 0.2], [2049, 3, 5, 0.37], [8649, 2, 4, 0.64], [2776, 2, 4, 0.67], [361, 2, 5, 0.4], [143, 2, 5, 0.76], [593, 2, 6, 0.2], [206, 2, 4, 1.19], [5493, 2, 4, 0.6], [1429, 2, 4, 1.84], [523, 2, 5, 0.54], [7004, 1, 4, 0.53], [21793, 1, 4, 0.61], [413, 1, 4, 0.81], [12350, 1, 4, 2.08], [1124, 2, 4, 0.79], [7036, 1, 4, 1.53], [5165, 1, 4, 1.2], [12353, 1, 4, 2.08], [12349, 1, 5, 1.31], [145, 2, 4, 1.17], [434, 2, 4, 0.44], [248, 1, 4, 0.48], [201, 3, 6, 0.66], [6952, 1, 4, 1.29], [6097, 80, 5, 2.63], [10993, 2, 5, 0.73], [345, 3, 6, 0.2], [146, 2, 4, 1.17], [144, 2, 5, 0.61], [7084, 3, 5, 2.49], [11770, 1, 4, 0.2], [2050, 3, 4, 1.46], [12352, 1, 4, 2.08], [3891, 1, 4, 0.25], [2912, 1, 4, 1.16], [7005, 1, 4, 0.57], [998, 2, 5, 0.23], [997, 2, 4, 0.41], [432, 3, 4, 0.39], [3893, 1, 4, 0.49], [5165, 2, 7, 0.66], [12870, 1, 4, 1.19], [9372, 1, 4, 1.04], [6097, 29, 4, 2.66], [2424, 80, 4, 0.86], [20927, 1, 4, 0.51], [11772, 1, 4, 1.66], [6098, 80, 4, 1.64], [7885, 4, 4, 0.74], [10149, 3, 17, 0.75], [11089, 1, 4, 0.57], [3334, 5, 4, 0.7], [10574, 3, 5, 0.56], [12351, 1, 5, 0.56], [1492, 1, 5, 0.31], [4032, 29, 4, 0.8], [346, 3, 4, 0.93], [3889, 1, 4, 1.16], [1700, 2, 4, 0.64], [12304, 1, 4, 2.17], [1519, 3, 12, 0.22], [3576, 25, 4, 1.76], [13028, 3, 5, 1.36], [2912, 2, 5, 1.2], [214, 3, 9, 0.66], [1490, 1, 4, 0.72], [13034, 3, 5, 1.52], [972, 3, 4, 1.01], [229, 1, 4, 2.2], [11583, 29, 4, 0.49], [161, 3, 5, 1.45], [11426, 25, 4, 0.4], [5151, 2, 4, 0.45], [346, 1, 4, 0.93], [2331, 1, 4, 0.49], [8120, 3, 4, 0.6], [11490, 1, 4, 0.4], [995, 2, 4, 1.16], [3478, 2, 4, 0.62], [5076, 1, 4, 0.46], [5812, 3, 5, 2.0], [13893, 2, 4, 1.24], [10, 2, 4, 0.39], [9289, 29, 4, 1.08], [1309, 1, 4, 0.36], [410, 1, 4, 0.39], [12764, 2, 5, 0.43], [13023, 3, 6, 1.25], [2160, 68, 4, 1.02], [3575, 25, 4, 0.94], [2805, 137, 4, 0.94], [11404, 2, 5, 0.2], [3577, 25, 4, 0.52], [13280, 1, 4, 1.36], [75, 2, 5, 0.37], [2438, 2, 5, 0.53], [957, 2, 5, 0.91], [11814, 1, 4, 0.57], [11813, 1, 4, 0.84], [9069, 1, 4, 0.63], [9971, 2, 4, 1.14], [9967, 2, 4, 0.59], [11150, 2, 5, 0.45], [192, 3, 8, 1.79], [8943, 3, 4, 0.39], [9491, 21, 8, 1.33], [8283, 2, 6, 1.27], [5584, 3, 4, 4.0], [22317, 3, 4, 0.44], [24257, 1, 4, 1.22], [13249, 29, 4, 1.12], [9964, 2, 4, 1.6], [21697, 3, 4, 0.2], [9081, 3, 12, 0.98], [4586, 10, 10, 0.8], [105, 3, 4, 0.83], [4076, 3, 4, 1.42], [10609, 1, 4, 0.48], [9965, 2, 4, 1.14], [1413, 15, 4, 0.66], [335, 3, 9, 0.92], [10407, 10, 7, 1.94], [6935, 2, 311, 5.27], [141, 2, 173, 3.01], [589, 2, 172, 2.58], [2327, 2, 169, 3.3], [2778, 2, 174, 2.43], [11681, 2, 301, 6.0], [6936, 2, 311, 5.81], [362, 2, 157, 3.45], [2328, 2, 169, 4.01], [205, 2, 129, 1.78], [130, 1, 42, 1.5], [2775, 2, 174, 2.43], [2049, 3, 644, 1.69], [8649, 2, 261, 3.71], [2776, 2, 184, 2.34], [361, 2, 173, 3.53], [143, 2, 168, 3.68], [593, 2, 269, 2.09], [206, 2, 25, 2.78], [5493, 2, 127, 2.04], [1429, 2, 89, 4.32], [523, 2, 173, 3.41], [7004, 1, 94, 1.9], [21793, 1, 266, 4.32], [413, 1, 102, 2.44], [12350, 1, 722, 5.56], [1124, 2, 218, 2.61], [7036, 1, 143, 3.83], [5165, 1, 53, 4.04], [12353, 1, 722, 5.56], [12349, 1, 685, 5.29], [145, 2, 171, 3.27], [434, 2, 126, 2.14], [248, 1, 64, 1.8], [201, 3, 168, 4.66], [6952, 1, 210, 5.46], [6097, 80, 76, 6.0], [10993, 2, 59, 2.54], [345, 3, 335, 4.1], [146, 2, 180, 3.13], [144, 2, 171, 2.59], [7084, 3, 30, 4.42], [11770, 1, 246, 1.95], [12352, 1, 722, 5.56], [3891, 1, 138, 3.38], [2912, 1, 53, 3.11], [7005, 1, 94, 1.98], [998, 2, 272, 4.32], [997, 2, 287, 2.54], [432, 3, 355, 2.92], [3893, 1, 138, 2.52], [5165, 2, 450, 2.12], [12870, 1, 154, 3.17], [9372, 1, 260, 4.62], [6097, 29, 38, 6.0], [2424, 80, 198, 2.59], [20927, 1, 94, 1.86], [11772, 1, 251, 4.13], [6098, 80, 84, 4.94], [10149, 3, 982, 2.6], [11089, 1, 199, 2.89], [3334, 5, 212, 3.79], [10574, 3, 608, 1.86], [12351, 1, 685, 3.1], [1492, 1, 41, 2.21], [4032, 29, 107, 2.42]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 8, 0.97], [305, 2, 4, 0.75], [6935, 2, 8, 1.44], [141, 2, 5, 0.39], [2049, 3, 12, 0.2], [205, 2, 4, 0.2], [12721, 2, 6, 0.97], [130, 1, 4, 0.51], [144, 2, 4, 0.49], [589, 2, 6, 0.2], [362, 2, 4, 1.07], [146, 2, 4, 0.58], [145, 2, 4, 0.39], [593, 2, 5, 0.59], [990, 2, 4, 0.44], [1777, 1, 5, 0.93], [8915, 2, 5, 0.43], [2328, 2, 5, 0.55], [8648, 2, 5, 0.77], [6936, 2, 6, 1.17], [8650, 2, 5, 1.15], [22247, 2, 4, 0.95], [2778, 2, 5, 0.2], [1007, 2, 6, 0.2], [88, 10, 8, 0.44], [10, 2, 6, 0.2], [8677, 3, 5, 1.81], [8649, 2, 4, 1.4], [10149, 3, 17, 1.32], [2054, 3, 6, 0.58], [412, 1, 4, 0.91], [13028, 3, 5, 0.5], [10825, 21, 8, 1.13], [11681, 2, 5, 1.12], [361, 2, 4, 0.65], [413, 1, 4, 0.85], [7004, 1, 4, 0.4], [2055, 3, 4, 0.8], [2057, 3, 4, 0.8], [7084, 3, 4, 1.63], [411, 2, 4, 0.23], [308, 1, 5, 0.72], [410, 1, 4, 0.36], [6158, 2, 5, 0.9], [8938, 2, 5, 0.9], [8676, 2, 4, 0.97], [1124, 2, 6, 0.2], [432, 3, 5, 0.39], [167, 3, 5, 1.1], [45, 2, 4, 1.37], [7036, 1, 4, 1.64], [3495, 3, 17, 1.31], [7005, 1, 4, 0.4], [5081, 2, 8, 0.2], [94, 4, 5, 0.51], [9827, 3, 4, 0.2], [5812, 3, 5, 2.5], [3893, 1, 4, 0.28], [3889, 1, 4, 0.28], [12870, 1, 4, 2.58], [2049, 1, 4, 0.55], [3891, 1, 4, 0.28], [168, 3, 6, 0.29], [6097, 29, 4, 1.86], [1504, 2, 7, 0.2], [335, 3, 11, 1.1], [6097, 80, 4, 2.61], [11737, 2, 4, 0.41], [95, 3, 17, 0.32], [6098, 29, 4, 2.02], [346, 1, 5, 0.56], [998, 2, 4, 1.52], [79, 1, 4, 0.2], [214, 3, 9, 0.44], [3980, 4, 4, 1.39], [20927, 1, 4, 0.61], [9069, 1, 5, 1.09], [22316, 3, 6, 0.49], [83, 2, 4, 0.44], [6098, 80, 4, 2.48], [20498, 1, 5, 0.55], [8898, 3, 6, 2.17], [9760, 29, 4, 0.49], [1070, 7, 11, 0.42], [997, 2, 4, 1.04], [1622, 1, 5, 0.2], [14017, 3, 5, 0.42], [7567, 3, 4, 1.37], [13034, 3, 8, 1.01], [22554, 10, 11, 0.23], [13260, 29, 4, 0.85], [11116, 1, 5, 0.2], [1243, 2, 4, 0.79], [12924, 1, 4, 0.2], [22317, 3, 8, 0.26], [20498, 3, 6, 0.84], [5946, 1, 4, 0.28], [996, 2, 4, 1.39], [35, 1, 4, 1.05], [5086, 1, 8, 0.2], [5813, 3, 5, 1.32], [9691, 1, 5, 1.66], [995, 2, 4, 1.56], [1413, 15, 4, 0.2], [1080, 3, 4, 0.63], [952, 4, 4, 2.48], [11085, 2, 4, 0.45], [2424, 80, 4, 1.45], [8557, 3, 4, 0.2], [3049, 3, 5, 1.73], [1703, 2, 5, 1.38], [215, 4, 5, 3.32], [20486, 3, 8, 0.5], [39, 1, 4, 0.8], [3900, 3, 5, 1.18], [4076, 3, 4, 2.94], [9081, 3, 8, 0.53], [13023, 3, 5, 1.48], [8274, 3, 4, 0.53], [8943, 3, 5, 0.37], [34, 1, 4, 0.47], [20486, 1, 4, 0.51], [6497, 1, 5, 1.25], [8104, 1, 4, 0.2], [11510, 3, 5, 0.71], [2854, 21, 11, 0.45], [38, 1, 4, 0.47], [23611, 3, 4, 0.42], [3047, 3, 5, 1.0], [20969, 3, 5, 1.12], [1414, 15, 4, 0.2], [2878, 1, 4, 1.57], [114, 3, 4, 0.23], [12923, 1, 4, 0.5], [10529, 29, 4, 0.48], [8672, 2, 281, 5.07], [305, 2, 145, 3.64], [6935, 2, 278, 5.23], [141, 2, 152, 3.06], [2049, 3, 539, 2.4], [205, 2, 107, 2.48], [12721, 2, 296, 2.46], [130, 1, 62, 1.66], [144, 2, 151, 1.84], [589, 2, 161, 1.23], [362, 2, 139, 3.44], [146, 2, 151, 3.22], [145, 2, 159, 1.59], [593, 2, 119, 2.87], [990, 2, 54, 1.72], [1777, 1, 107, 3.88], [8915, 2, 200, 1.63], [2328, 2, 148, 3.16], [8648, 2, 218, 4.67], [6936, 2, 278, 4.62], [8650, 2, 218, 5.32], [22247, 2, 296, 3.03], [2778, 2, 153, 3.21], [1007, 2, 266, 1.69], [88, 10, 587, 2.65], [10, 2, 109, 2.73], [8677, 3, 289, 5.23], [8649, 2, 218, 5.01], [10149, 3, 853, 5.41], [2054, 3, 463, 4.27], [412, 1, 82, 3.82], [13028, 3, 145, 3.08], [10825, 21, 675, 2.7], [11681, 2, 274, 3.6], [361, 2, 152, 2.18], [413, 1, 85, 3.3], [7004, 1, 78, 2.8], [2055, 3, 488, 2.59], [2057, 3, 488, 4.38], [7084, 3, 127, 3.82], [411, 2, 107, 2.92], [308, 1, 166, 3.34], [410, 1, 102, 2.83], [6158, 2, 270, 3.55], [8938, 2, 198, 2.26], [8676, 2, 296, 2.62], [1124, 2, 184, 1.89], [432, 3, 297, 2.94], [167, 3, 236, 3.63], [45, 2, 108, 5.82], [7036, 1, 125, 4.63], [3495, 3, 950, 4.43], [7005, 1, 78, 2.8], [5081, 2, 189, 3.15], [94, 4, 117, 4.7], [9827, 3, 86, 3.03], [5812, 3, 611, 5.08], [3893, 1, 121, 1.92], [3889, 1, 121, 1.92], [12870, 1, 135, 6.0], [3891, 1, 121, 1.92], [168, 3, 399, 3.61], [1504, 2, 200, 2.99], [6097, 80, 68, 5.83], [11737, 2, 56, 2.55]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 10, 2.68], [3, 2, 7, 2.67], [326, 2, 11, 1.38], [589, 2, 15, 0.55], [143, 2, 7, 1.12], [2049, 3, 18, 1.93], [6935, 2, 18, 3.14], [130, 1, 7, 1.56], [205, 2, 7, 0.71], [75, 2, 7, 1.86], [12721, 2, 10, 1.69], [144, 2, 7, 1.42], [145, 2, 7, 1.0], [8915, 2, 12, 0.5], [1776, 1, 7, 1.17], [593, 2, 10, 2.33], [146, 2, 7, 2.25], [151, 1, 7, 0.71], [2778, 2, 13, 1.07], [1777, 1, 7, 1.85], [20252, 2, 7, 1.1], [206, 2, 7, 1.53], [8648, 2, 14, 4.89], [990, 2, 9, 1.73], [2328, 2, 9, 1.55], [6936, 2, 10, 2.57], [5151, 2, 7, 0.9], [7886, 4, 7, 0.87], [8650, 2, 14, 5.0], [88, 10, 17, 1.98], [141, 2, 7, 2.63], [74, 1, 7, 3.53], [83, 2, 7, 0.85], [1492, 1, 7, 1.85], [7004, 1, 7, 0.96], [2054, 3, 7, 1.03], [362, 2, 7, 2.4], [2057, 3, 7, 0.89], [10825, 21, 13, 2.02], [8649, 2, 14, 5.0], [2055, 3, 7, 0.81], [345, 3, 11, 0.97], [7084, 3, 7, 3.88], [7005, 1, 7, 0.73], [307, 2, 7, 1.93], [3889, 1, 7, 0.8], [21793, 1, 7, 4.02], [410, 1, 7, 1.0], [432, 3, 7, 1.15], [7887, 4, 7, 0.67], [22247, 2, 13, 2.72], [57, 1, 7, 1.0], [11681, 2, 14, 5.0], [10149, 3, 21, 1.67], [308, 1, 7, 2.55], [7036, 1, 7, 2.24], [94, 4, 7, 1.85], [12870, 1, 11, 5.0], [5081, 2, 9, 1.33], [9827, 3, 7, 0.53], [201, 3, 11, 0.87], [167, 3, 9, 2.77], [13028, 3, 7, 2.95], [8677, 3, 9, 1.26], [1504, 2, 7, 2.47], [1124, 2, 14, 0.68], [3891, 1, 7, 2.38], [35, 1, 9, 2.05], [3893, 1, 7, 2.38], [8676, 2, 7, 1.7], [168, 3, 11, 3.71], [9760, 29, 9, 0.92], [5812, 3, 8, 1.91], [1243, 2, 7, 1.27], [6158, 2, 10, 0.94], [412, 1, 7, 2.68], [45, 2, 7, 2.72], [361, 2, 7, 1.87], [20927, 1, 7, 1.14], [335, 3, 20, 0.93], [1767, 25, 7, 1.14], [3980, 4, 7, 2.74], [346, 1, 7, 3.18], [95, 3, 27, 0.67], [9069, 1, 7, 1.46], [214, 3, 18, 0.69], [998, 2, 7, 2.35], [2049, 1, 7, 1.19], [413, 1, 7, 2.06], [3495, 3, 18, 2.26], [8674, 2, 7, 1.7], [856, 1, 7, 0.73], [34, 1, 7, 1.65], [8898, 3, 7, 2.78], [11116, 1, 7, 0.86], [346, 3, 7, 1.57], [1766, 25, 9, 1.39], [5946, 1, 7, 2.23], [1070, 7, 15, 0.84], [997, 2, 9, 2.24], [9691, 1, 7, 3.41], [20498, 1, 7, 2.97], [38, 1, 7, 1.9], [974, 3, 9, 2.39], [152, 21, 7, 0.83], [9372, 1, 7, 3.6], [14017, 3, 7, 1.75], [1091, 1, 7, 1.5], [22317, 3, 9, 1.01], [11954, 1, 7, 3.89], [20498, 3, 10, 1.9], [996, 2, 7, 2.35], [82, 2, 7, 1.88], [1080, 3, 7, 1.59], [9828, 3, 7, 0.76], [14037, 3, 7, 1.09], [39, 1, 7, 1.62], [5811, 3, 7, 4.24], [3048, 3, 7, 3.93], [972, 3, 8, 1.9], [1767, 2, 7, 1.46], [13260, 29, 9, 2.46], [24, 1, 9, 1.96], [4203, 1, 9, 1.06], [5813, 3, 7, 4.0], [10780, 10, 7, 3.58], [13034, 3, 8, 2.39], [5513, 2, 7, 1.93], [8945, 3, 8, 2.34], [952, 4, 7, 4.16], [202, 2, 7, 3.13], [3981, 3, 17, 2.74], [3900, 3, 7, 0.94], [995, 2, 7, 2.53], [6497, 1, 7, 0.9], [3893, 1, 138, 3.95], [8676, 2, 339, 2.47], [168, 3, 427, 4.48], [9760, 29, 80, 2.17], [5812, 3, 664, 3.68], [1243, 2, 110, 2.26], [6158, 2, 295, 3.16], [412, 1, 93, 4.36], [45, 2, 120, 4.53], [361, 2, 173, 3.11], [20927, 1, 90, 2.13], [335, 3, 1468, 2.53], [1767, 25, 193, 3.4], [3980, 4, 568, 3.51], [346, 1, 177, 3.95], [95, 3, 1223, 3.3], [9069, 1, 136, 2.45], [214, 3, 734, 1.69], [998, 2, 284, 3.12], [2049, 1, 8, 1.64], [413, 1, 96, 3.86], [3495, 3, 1083, 4.16], [8674, 2, 339, 2.47], [856, 1, 41, 1.49], [34, 1, 125, 3.59], [8898, 3, 316, 5.08], [11116, 1, 90, 2.07], [346, 3, 674, 2.8], [1766, 25, 210, 3.33], [5946, 1, 138, 3.78], [1070, 7, 661, 3.14], [997, 2, 269, 4.04], [9691, 1, 84, 4.24], [20498, 1, 109, 4.11], [38, 1, 125, 3.64], [974, 3, 166, 3.95], [9372, 1, 256, 5.15], [14017, 3, 220, 4.21], [1091, 1, 56, 2.26], [22317, 3, 355, 2.78], [11954, 1, 218, 4.66], [20498, 3, 654, 3.7], [996, 2, 284, 3.12], [82, 2, 67, 2.87], [1080, 3, 148, 3.39], [9828, 3, 98, 2.69], [39, 1, 125, 2.94], [5811, 3, 696, 5.0], [3048, 3, 303, 5.48], [972, 3, 667, 3.43], [1767, 2, 38, 2.94], [13260, 29, 81, 3.46], [24, 1, 126, 3.39], [4203, 1, 55, 2.86], [5813, 3, 661, 4.76], [10780, 10, 429, 5.39], [13034, 3, 664, 3.98], [5513, 2, 93, 2.69], [952, 4, 85, 4.92], [202, 2, 85, 3.89], [3981, 3, 1906, 3.51], [3900, 3, 52, 1.71], [995, 2, 284, 3.3], [6497, 1, 44, 1.66]]</t>
+  </si>
+  <si>
+    <t>[[305, 2, 9, 1.32], [6935, 2, 11, 4.09], [589, 2, 8, 1.6], [2778, 2, 11, 1.18], [144, 2, 7, 1.04], [8915, 2, 10, 1.06], [130, 1, 7, 0.69], [2328, 2, 11, 1.39], [6936, 2, 7, 3.27], [205, 2, 9, 0.67], [8648, 2, 14, 3.54], [2775, 2, 7, 2.56], [593, 2, 11, 2.52], [145, 2, 7, 0.96], [146, 2, 7, 1.35], [5493, 2, 7, 0.74], [11681, 2, 9, 4.95], [7036, 1, 7, 3.63], [88, 10, 24, 2.1], [2776, 2, 7, 2.04], [141, 2, 7, 0.72], [151, 1, 7, 0.98], [1446, 2, 7, 1.5], [206, 2, 7, 1.45], [990, 2, 7, 0.75], [9760, 29, 9, 1.24], [248, 1, 7, 1.02], [5491, 2, 7, 0.77], [1007, 2, 7, 0.73], [8672, 2, 7, 5.0], [142, 2, 7, 1.77], [362, 2, 7, 1.0], [2912, 1, 7, 1.75], [10993, 2, 7, 1.25], [3893, 1, 7, 0.71], [12870, 1, 9, 3.33], [5165, 1, 7, 2.14], [7886, 4, 7, 0.8], [2055, 3, 7, 1.07], [417, 2, 7, 1.77], [9372, 1, 7, 3.88], [1622, 1, 11, 0.59], [3889, 1, 9, 1.13], [523, 2, 7, 1.19], [2054, 3, 7, 2.19], [7573, 1, 21, 5.0], [21793, 1, 7, 1.7], [10, 2, 9, 1.14], [7885, 4, 7, 1.19], [3891, 1, 7, 0.76], [10149, 3, 21, 2.82], [75, 2, 7, 2.18], [20927, 1, 7, 2.5], [61, 3, 7, 2.37], [5208, 3, 14, 0.79], [997, 2, 7, 2.75], [3, 2, 9, 1.83], [9491, 21, 29, 0.96], [12721, 2, 7, 3.06], [5165, 2, 8, 1.95], [35, 1, 9, 2.98], [83, 2, 11, 1.48], [998, 2, 7, 1.56], [22247, 2, 7, 2.52], [33, 1, 9, 2.92], [996, 2, 7, 2.88], [346, 3, 7, 5.0], [7887, 4, 7, 2.05], [972, 3, 10, 1.66], [5076, 1, 7, 2.68], [2805, 137, 7, 4.94], [229, 1, 7, 2.98], [6158, 2, 9, 1.56], [2424, 80, 7, 2.78], [34, 1, 9, 3.0], [13028, 3, 7, 4.0], [2912, 2, 12, 3.01], [13928, 1, 7, 2.56], [38, 1, 9, 3.05], [8898, 3, 7, 5.0], [346, 1, 7, 5.0], [76, 2, 7, 1.69], [12212, 29, 9, 0.9], [8104, 1, 7, 1.79], [2336, 3, 8, 1.19], [9690, 1, 7, 1.19], [5209, 3, 9, 1.92], [39, 1, 9, 3.02], [3495, 3, 18, 2.75], [11952, 1, 7, 1.27], [7567, 3, 7, 3.04], [2424, 29, 7, 1.27], [5946, 1, 7, 1.02], [11490, 1, 9, 1.14], [24257, 1, 7, 1.0], [9691, 1, 7, 2.06], [3048, 3, 7, 1.77], [11770, 1, 7, 3.84], [411, 2, 7, 1.64], [21798, 1, 7, 1.14], [1703, 2, 7, 2.56], [13928, 2, 7, 2.56], [632, 11, 21, 0.84], [11953, 1, 9, 0.75], [74, 1, 7, 5.0], [161, 3, 9, 4.12], [10407, 10, 12, 3.76], [22316, 3, 9, 1.16], [13023, 3, 10, 1.41], [1523, 1, 7, 0.81], [21269, 3, 7, 1.96], [10410, 10, 15, 3.8], [192, 3, 15, 2.1], [12764, 2, 10, 2.01], [214, 3, 15, 1.01], [2331, 1, 7, 3.16], [972, 1, 7, 1.94], [3430, 15, 7, 2.79], [5164, 1, 7, 1.93], [13893, 2, 7, 4.11], [1274, 1, 7, 1.55], [4076, 3, 7, 2.73], [6097, 80, 7, 2.43], [6097, 29, 7, 2.31], [11116, 1, 7, 1.08], [3576, 29, 7, 2.44], [10408, 10, 8, 3.12], [1080, 3, 7, 2.78], [1243, 2, 9, 2.48], [3047, 3, 7, 2.68], [10780, 10, 7, 3.61], [2438, 2, 8, 3.45], [8674, 2, 7, 3.66], [11813, 1, 7, 1.41], [3334, 5, 7, 4.94], [2436, 4, 7, 1.36], [346, 3, 678, 5.86], [972, 3, 650, 3.9], [5076, 1, 150, 3.54], [2805, 137, 203, 5.8], [229, 1, 89, 4.15], [6158, 2, 285, 2.64], [2424, 80, 186, 3.86], [13028, 3, 161, 4.86], [13928, 1, 51, 3.92], [8898, 3, 327, 6.0], [346, 1, 170, 5.86], [76, 2, 119, 3.73], [12212, 29, 131, 3.03], [8104, 1, 236, 2.65], [2336, 3, 675, 2.05], [9690, 1, 83, 2.38], [3495, 3, 1056, 3.61], [11952, 1, 230, 2.13], [7567, 3, 76, 4.21], [2424, 29, 37, 2.13], [5946, 1, 135, 2.11], [11490, 1, 63, 2.57], [24257, 1, 154, 2.09], [9691, 1, 87, 2.92], [3048, 3, 313, 2.63], [11770, 1, 243, 4.7], [411, 2, 118, 2.73], [21798, 1, 161, 2.0], [1703, 2, 179, 3.73], [13928, 2, 27, 3.42], [632, 11, 949, 1.71], [11953, 1, 218, 1.96], [74, 1, 219, 6.0], [161, 3, 837, 4.99], [10407, 10, 1263, 5.88], [22316, 3, 346, 2.25], [13023, 3, 657, 3.53], [1523, 1, 51, 1.89], [21269, 3, 332, 2.82], [10410, 10, 1263, 5.22], [192, 3, 1615, 2.95], [12764, 2, 810, 3.87], [2331, 1, 134, 4.02], [972, 1, 108, 2.8], [3430, 15, 75, 3.89], [5164, 1, 55, 2.79], [13893, 2, 310, 4.97], [1274, 1, 90, 2.41], [4076, 3, 230, 3.59], [6097, 80, 76, 3.59], [6097, 29, 38, 3.4], [11116, 1, 92, 1.94], [3576, 29, 39, 3.3], [10408, 10, 881, 3.97], [1080, 3, 138, 3.87], [1243, 2, 107, 4.36], [3047, 3, 294, 4.59], [10780, 10, 410, 5.32], [2438, 2, 682, 5.35], [8674, 2, 323, 4.51], [11813, 1, 362, 2.27], [3334, 5, 203, 5.8], [2436, 4, 126, 3.21]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 10, 2.95], [130, 1, 7, 0.67], [11685, 2, 7, 3.6], [8648, 2, 9, 2.71], [144, 2, 7, 2.5], [589, 2, 8, 0.61], [2327, 2, 7, 0.98], [11681, 2, 9, 3.34], [205, 2, 7, 0.74], [593, 2, 14, 1.01], [305, 2, 7, 1.23], [8915, 2, 8, 0.93], [141, 2, 9, 1.58], [8650, 2, 7, 2.25], [151, 1, 7, 0.77], [6936, 2, 14, 4.75], [2778, 2, 9, 1.43], [206, 2, 7, 1.57], [146, 2, 7, 2.06], [88, 10, 18, 0.73], [615, 2, 7, 1.53], [7036, 1, 7, 2.85], [1446, 2, 7, 1.73], [990, 2, 7, 0.69], [362, 2, 7, 0.96], [8853, 2, 7, 2.37], [417, 2, 7, 0.93], [248, 1, 7, 0.75], [2055, 3, 7, 4.16], [523, 2, 7, 1.56], [3893, 1, 7, 0.83], [12870, 1, 7, 3.69], [142, 2, 7, 0.93], [12350, 1, 7, 2.38], [2057, 3, 7, 3.77], [3889, 1, 7, 1.75], [7084, 3, 7, 1.65], [20927, 1, 7, 1.66], [7005, 1, 7, 1.29], [997, 2, 7, 1.75], [12349, 1, 7, 4.99], [21793, 1, 7, 2.58], [3891, 1, 7, 1.49], [61, 3, 9, 2.43], [7885, 4, 9, 1.03], [5165, 1, 7, 2.14], [6158, 2, 21, 1.5], [8672, 2, 14, 2.68], [5165, 2, 8, 2.15], [9491, 21, 20, 1.13], [2912, 1, 7, 1.67], [98, 11, 16, 1.21], [972, 3, 11, 3.54], [411, 2, 7, 1.73], [9372, 1, 7, 4.23], [10388, 2, 7, 1.16], [214, 3, 18, 0.67], [33, 1, 7, 3.41], [410, 1, 7, 2.57], [7886, 4, 7, 1.19], [13928, 1, 7, 2.18], [7567, 3, 7, 2.7], [9081, 3, 16, 1.41], [3981, 3, 22, 2.41], [22316, 3, 7, 0.98], [83, 2, 7, 1.41], [22247, 2, 7, 2.12], [336, 15, 7, 1.77], [308, 1, 7, 3.55], [2912, 2, 8, 3.01], [10631, 2, 7, 0.81], [161, 3, 8, 4.87], [229, 1, 7, 3.17], [5946, 1, 7, 1.49], [11953, 1, 7, 1.06], [10780, 10, 7, 3.43], [22317, 3, 7, 1.67], [6497, 1, 7, 0.9], [345, 3, 7, 1.46], [12271, 2, 7, 0.9], [3478, 2, 7, 1.93], [11767, 1, 7, 0.83], [10407, 10, 10, 3.53], [10410, 10, 10, 3.57], [9082, 3, 33, 2.42], [37, 1, 7, 2.23], [972, 1, 7, 1.51], [6097, 80, 7, 3.68], [39, 1, 7, 1.71], [8104, 1, 7, 0.73], [74, 1, 7, 4.11], [1413, 15, 7, 0.69], [34, 1, 7, 1.79], [82, 2, 7, 1.27], [7704, 2, 7, 2.41], [3048, 3, 7, 0.92], [24257, 1, 7, 2.73], [2331, 1, 7, 3.53], [192, 3, 20, 1.59], [335, 3, 15, 2.02], [152, 21, 9, 0.89], [38, 1, 7, 1.27], [9971, 2, 7, 3.23], [12338, 29, 9, 0.69], [9, 1, 7, 0.87], [4253, 1, 7, 1.29], [1523, 1, 7, 0.85], [45, 2, 7, 5.0], [12721, 2, 7, 2.09], [11510, 3, 8, 2.0], [6097, 29, 7, 3.68], [10936, 2, 7, 2.38], [8673, 2, 7, 4.12], [2805, 137, 7, 3.07], [10093, 3, 15, 1.68], [1080, 3, 7, 0.71], [7007, 1, 7, 2.33], [12764, 2, 8, 1.43], [3047, 3, 7, 4.74], [12212, 29, 7, 0.94], [7705, 2, 7, 2.56], [1895, 3, 7, 3.57], [8659, 1, 7, 3.34], [7706, 2, 7, 2.31], [9965, 2, 7, 4.66], [6496, 1, 7, 2.09], [8676, 2, 7, 1.46], [11812, 1, 7, 0.9], [201, 3, 7, 2.62], [2424, 80, 7, 2.59], [8635, 3, 7, 2.86], [4203, 1, 7, 1.08], [1703, 2, 7, 2.63], [3475, 2, 7, 3.15], [2438, 2, 8, 2.12], [308, 1, 161, 4.6], [10631, 2, 234, 1.62], [161, 3, 730, 5.94], [229, 1, 88, 3.97], [5946, 1, 135, 2.3], [11953, 1, 217, 1.87], [10780, 10, 395, 4.24], [22317, 3, 323, 3.38], [6497, 1, 38, 1.95], [345, 3, 304, 2.92], [12271, 2, 69, 1.71], [3478, 2, 76, 2.74], [11767, 1, 166, 1.87], [10407, 10, 1170, 4.35], [10410, 10, 1232, 4.39], [9082, 3, 2644, 3.25], [37, 1, 114, 3.22], [972, 1, 106, 2.32], [6097, 80, 74, 4.49], [39, 1, 114, 2.52], [8104, 1, 95, 1.43], [74, 1, 214, 4.92], [1413, 15, 96, 1.49], [34, 1, 114, 2.99], [82, 2, 61, 2.08], [7704, 2, 191, 3.22], [3048, 3, 277, 1.97], [24257, 1, 140, 3.78], [2331, 1, 123, 4.34], [192, 3, 1529, 2.41], [335, 3, 1394, 2.81], [38, 1, 120, 2.08], [9971, 2, 292, 4.04], [12338, 29, 54, 1.8], [9, 1, 37, 1.68], [4253, 1, 187, 2.11], [1523, 1, 51, 1.66], [45, 2, 110, 6.0], [12721, 2, 308, 2.89], [11510, 3, 602, 3.04], [6097, 29, 37, 4.49], [10936, 2, 144, 3.19], [8673, 2, 301, 4.93], [2805, 137, 186, 3.88], [10093, 3, 887, 2.49], [1080, 3, 139, 1.52], [7007, 1, 85, 3.14], [12764, 2, 798, 2.24], [3047, 3, 275, 5.55], [12212, 29, 129, 1.75], [7705, 2, 191, 3.38], [1895, 3, 316, 4.38], [8659, 1, 128, 4.15], [7706, 2, 191, 3.12], [9965, 2, 277, 5.47], [6496, 1, 43, 2.9], [8676, 2, 310, 2.27], [11812, 1, 258, 1.7], [201, 3, 320, 3.42], [2424, 80, 182, 3.4], [8635, 3, 363, 3.67], [4203, 1, 53, 1.88], [1703, 2, 176, 3.43], [3475, 2, 63, 3.96], [2438, 2, 671, 2.92]]</t>
+  </si>
+  <si>
+    <t>[[326, 2, 8, 1.03], [6935, 2, 23, 3.05], [362, 2, 9, 1.88], [2049, 3, 16, 0.8], [589, 2, 12, 0.5], [141, 2, 7, 1.04], [75, 2, 11, 1.99], [1776, 1, 7, 1.12], [8672, 2, 15, 2.16], [20252, 2, 7, 0.74], [205, 2, 7, 0.93], [7886, 4, 7, 1.01], [2778, 2, 8, 0.81], [1777, 1, 7, 2.22], [305, 2, 7, 0.92], [11681, 2, 10, 5.0], [593, 2, 11, 2.33], [8648, 2, 9, 3.46], [6936, 2, 10, 2.79], [2328, 2, 7, 0.94], [1007, 2, 10, 1.03], [88, 10, 21, 1.69], [83, 2, 7, 0.96], [5151, 2, 7, 1.96], [8650, 2, 9, 3.5], [412, 1, 7, 2.67], [345, 3, 7, 1.1], [2991, 3, 7, 4.78], [22247, 2, 9, 2.4], [361, 2, 7, 0.94], [144, 2, 7, 1.44], [57, 1, 9, 0.93], [201, 3, 8, 1.0], [21793, 1, 7, 3.62], [10149, 3, 25, 3.26], [45, 2, 7, 2.65], [3478, 2, 7, 0.87], [146, 2, 7, 2.68], [2054, 3, 9, 3.23], [7004, 1, 7, 0.9], [12721, 2, 10, 1.78], [167, 3, 7, 2.5], [2057, 3, 7, 3.23], [413, 1, 7, 2.06], [10825, 21, 13, 2.1], [6158, 2, 10, 2.87], [74, 1, 7, 3.5], [168, 3, 7, 1.38], [308, 1, 7, 2.44], [346, 1, 7, 0.74], [2055, 3, 7, 1.92], [10, 2, 17, 2.16], [7036, 1, 9, 4.85], [13028, 3, 7, 1.61], [3495, 3, 21, 1.64], [335, 3, 27, 3.16], [432, 3, 7, 1.61], [5081, 2, 9, 0.59], [7887, 4, 7, 0.77], [12870, 1, 9, 5.0], [214, 3, 15, 0.77], [8649, 2, 7, 2.97], [79, 1, 7, 0.73], [410, 1, 7, 1.54], [1492, 1, 7, 1.2], [3889, 1, 7, 2.63], [145, 2, 9, 0.73], [9827, 3, 7, 0.86], [3893, 1, 7, 1.67], [1504, 2, 9, 0.89], [5208, 3, 16, 1.05], [95, 3, 21, 3.57], [13260, 29, 7, 1.89], [5812, 3, 8, 2.16], [23, 1, 7, 2.91], [94, 4, 7, 2.79], [411, 2, 7, 1.46], [7005, 1, 7, 1.19], [3891, 1, 7, 1.3], [998, 2, 7, 2.66], [25, 1, 7, 2.91], [21269, 3, 7, 5.0], [7567, 3, 7, 3.13], [10574, 3, 9, 2.33], [5086, 1, 9, 2.04], [1243, 2, 9, 2.8], [9069, 1, 7, 2.45], [2878, 1, 7, 2.42], [997, 2, 9, 3.39], [11954, 1, 7, 1.34], [9691, 1, 7, 3.66], [856, 1, 7, 0.92], [11914, 1, 11, 1.02], [20927, 1, 7, 2.0], [1703, 2, 7, 3.38], [5660, 2, 7, 3.65], [5584, 3, 7, 4.0], [952, 4, 7, 5.0], [5209, 3, 9, 0.67], [9081, 3, 14, 3.64], [8898, 3, 7, 5.0], [996, 2, 7, 4.61], [1070, 7, 13, 1.16], [346, 3, 8, 1.14], [1622, 1, 11, 0.85], [8676, 2, 7, 1.94], [12661, 1, 7, 4.53], [23961, 3, 7, 5.0], [5513, 2, 7, 1.63], [1091, 1, 7, 1.1], [22317, 3, 8, 1.15], [8274, 3, 7, 1.92], [13034, 3, 12, 3.0], [11811, 1, 7, 3.08], [24, 1, 7, 2.51], [1519, 3, 21, 0.94], [27, 1, 7, 2.91], [8674, 2, 10, 1.94], [6097, 29, 11, 2.58], [9760, 29, 11, 0.62], [4203, 1, 7, 1.27], [6097, 80, 7, 2.41], [10529, 29, 7, 2.85], [82, 2, 7, 0.67], [1413, 15, 7, 1.44], [995, 2, 9, 4.44], [9082, 3, 21, 1.17], [20498, 3, 8, 3.76], [66, 1, 7, 0.81], [2104, 3, 10, 2.99], [6098, 80, 7, 2.21], [9372, 1, 7, 1.93], [6098, 29, 7, 1.86], [34, 1, 7, 1.48], [9827, 3, 86, 3.01], [3893, 1, 121, 3.33], [1504, 2, 200, 3.04], [5208, 3, 554, 2.2], [95, 3, 1090, 4.25], [13260, 29, 71, 3.0], [5812, 3, 580, 4.28], [23, 1, 115, 3.59], [94, 4, 117, 3.69], [411, 2, 107, 2.48], [7005, 1, 78, 2.47], [3891, 1, 121, 3.52], [998, 2, 232, 5.07], [25, 1, 115, 3.59], [21269, 3, 289, 6.0], [7567, 3, 68, 4.03], [10574, 3, 499, 3.22], [5086, 1, 181, 4.19], [1243, 2, 96, 3.48], [2878, 1, 78, 3.29], [997, 2, 232, 4.07], [11954, 1, 194, 2.02], [9691, 1, 73, 4.81], [856, 1, 34, 1.82], [11914, 1, 83, 3.67], [1703, 2, 159, 4.78], [5660, 2, 171, 4.33], [5584, 3, 231, 5.27], [952, 4, 71, 6.0], [5209, 3, 554, 2.85], [9081, 3, 453, 5.8], [8898, 3, 274, 6.0], [996, 2, 245, 5.29], [1070, 7, 580, 2.82], [346, 3, 633, 1.82], [1622, 1, 56, 1.39], [8676, 2, 296, 2.62], [12661, 1, 77, 5.59], [23961, 3, 282, 5.84], [5513, 2, 76, 2.31], [1091, 1, 47, 2.93], [22317, 3, 311, 2.56], [13034, 3, 577, 4.66], [11811, 1, 446, 3.75], [24, 1, 110, 3.81], [1519, 3, 1611, 2.61], [27, 1, 115, 3.59], [8674, 2, 296, 2.62], [6097, 29, 36, 3.26], [9760, 29, 71, 2.53], [4203, 1, 47, 2.68], [6097, 80, 68, 3.09], [10529, 29, 39, 4.25], [82, 2, 59, 1.57], [1413, 15, 96, 2.72], [995, 2, 232, 5.59], [9082, 3, 2416, 3.42], [20498, 3, 580, 4.44], [66, 1, 40, 1.49], [2104, 3, 328, 3.89], [6098, 80, 75, 2.89], [9372, 1, 236, 2.61], [6098, 29, 39, 2.54], [34, 1, 110, 2.16]]</t>
+  </si>
+  <si>
+    <t>[[589, 2, 10, 0.87], [88, 10, 29, 1.1], [2327, 2, 7, 1.0], [8915, 2, 10, 1.06], [6935, 2, 14, 4.34], [2778, 2, 7, 0.55], [305, 2, 7, 1.07], [2328, 2, 11, 1.46], [130, 1, 7, 0.69], [5493, 2, 11, 0.5], [616, 2, 9, 0.85], [326, 2, 11, 2.77], [6936, 2, 7, 3.27], [8648, 2, 7, 3.27], [8650, 2, 9, 4.87], [1446, 2, 9, 1.57], [7004, 1, 7, 2.5], [205, 2, 7, 0.85], [2049, 3, 10, 1.17], [144, 2, 7, 2.5], [10, 2, 7, 2.3], [151, 1, 7, 0.98], [990, 2, 7, 0.75], [7036, 1, 14, 4.62], [3893, 1, 7, 2.11], [146, 2, 7, 2.06], [7885, 4, 7, 0.94], [141, 2, 7, 1.77], [3891, 1, 7, 1.55], [206, 2, 7, 1.02], [75, 2, 9, 2.39], [2055, 3, 7, 1.91], [362, 2, 7, 2.9], [10993, 2, 7, 0.87], [21793, 1, 7, 1.66], [5208, 3, 14, 0.79], [3889, 1, 26, 2.13], [7084, 3, 7, 3.02], [11234, 2, 7, 2.7], [7005, 1, 7, 1.31], [3980, 4, 8, 2.38], [12870, 1, 7, 3.72], [2912, 1, 9, 2.08], [145, 2, 7, 2.89], [5165, 1, 7, 2.07], [10149, 3, 21, 2.85], [8672, 2, 7, 5.0], [9760, 29, 7, 0.97], [998, 2, 7, 1.5], [20927, 1, 7, 2.5], [997, 2, 7, 2.49], [2436, 4, 7, 1.36], [417, 2, 7, 1.77], [2424, 80, 7, 2.78], [7887, 4, 9, 2.05], [6158, 2, 9, 1.56], [3, 2, 11, 1.58], [5076, 1, 9, 1.7], [632, 11, 21, 0.84], [229, 1, 7, 3.17], [972, 3, 9, 1.92], [3495, 3, 14, 1.61], [74, 1, 7, 2.35], [9491, 21, 21, 3.04], [523, 2, 7, 1.19], [11770, 1, 7, 2.08], [346, 3, 7, 2.56], [11953, 1, 7, 0.87], [5165, 2, 8, 2.08], [7573, 1, 16, 4.81], [12721, 2, 7, 1.45], [996, 2, 7, 1.96], [22316, 3, 9, 1.16], [2423, 80, 9, 3.79], [11772, 1, 7, 3.73], [9372, 1, 7, 3.88], [3981, 3, 22, 1.14], [6497, 1, 7, 0.94], [24257, 1, 9, 1.19], [2912, 2, 12, 3.01], [11952, 1, 7, 1.27], [2438, 2, 8, 3.32], [12229, 2, 7, 0.69], [823, 1, 7, 1.25], [361, 2, 7, 1.77], [2424, 29, 7, 0.89], [8898, 3, 9, 5.0], [3975, 4, 9, 2.75], [346, 1, 7, 3.21], [1622, 1, 7, 0.94], [6496, 1, 7, 2.37], [192, 3, 15, 2.1], [10407, 10, 12, 3.53], [3900, 3, 7, 1.43], [5209, 3, 9, 1.54], [2805, 137, 7, 2.41], [9081, 3, 12, 1.23], [5946, 1, 7, 1.02], [33, 1, 7, 1.23], [11812, 1, 7, 0.9], [335, 3, 18, 2.53], [1703, 2, 7, 1.39], [7567, 3, 7, 3.04], [12764, 2, 8, 1.48], [10388, 2, 7, 3.21], [11490, 1, 7, 0.92], [37, 1, 7, 0.9], [8676, 2, 7, 5.0], [6097, 80, 7, 2.16], [972, 1, 7, 1.94], [202, 2, 7, 1.69], [220, 4, 7, 2.52], [1519, 3, 18, 0.78], [22247, 2, 7, 2.5], [23611, 3, 8, 0.88], [161, 3, 9, 4.12], [35, 1, 7, 1.23], [38, 1, 7, 1.8], [13893, 2, 7, 4.11], [2104, 3, 15, 2.31], [11814, 1, 7, 0.92], [95, 3, 22, 0.85], [83, 2, 7, 1.1], [4232, 80, 7, 3.5], [1895, 3, 7, 4.76], [11813, 1, 7, 1.41], [11116, 1, 7, 1.08], [12212, 29, 9, 1.0], [8635, 3, 7, 2.27], [788, 2, 7, 1.02], [8104, 1, 7, 1.79], [12979, 25, 12, 1.36], [76, 2, 7, 0.98], [1309, 1, 7, 0.89], [13928, 1, 7, 2.56], [10386, 2, 7, 2.99], [5165, 2, 438, 2.94], [7573, 1, 378, 5.94], [12721, 2, 328, 2.31], [996, 2, 262, 3.05], [22316, 3, 346, 2.25], [2423, 80, 203, 5.23], [11772, 1, 243, 4.59], [9372, 1, 264, 4.75], [3981, 3, 1938, 2.0], [6497, 1, 43, 1.8], [24257, 1, 154, 2.4], [11952, 1, 230, 2.13], [2438, 2, 682, 5.35], [12229, 2, 176, 1.55], [823, 1, 46, 2.11], [361, 2, 179, 2.63], [2424, 29, 37, 1.98], [8898, 3, 310, 6.0], [3975, 4, 528, 4.61], [346, 1, 161, 4.07], [1622, 1, 125, 1.8], [6496, 1, 46, 3.23], [192, 3, 1615, 2.95], [10407, 10, 1263, 5.88], [3900, 3, 51, 2.29], [5209, 3, 130, 2.37], [2805, 137, 192, 3.49], [9081, 3, 558, 2.09], [5946, 1, 135, 2.11], [33, 1, 129, 2.09], [11812, 1, 276, 1.76], [1703, 2, 179, 2.48], [7567, 3, 76, 4.21], [12764, 2, 853, 2.34], [10388, 2, 253, 4.07], [11490, 1, 119, 2.01], [37, 1, 129, 1.76], [8676, 2, 323, 6.0], [6097, 80, 76, 3.24], [972, 1, 114, 2.8], [202, 2, 84, 2.55], [220, 4, 55, 3.38], [1519, 3, 1884, 1.61], [22247, 2, 328, 3.36], [23611, 3, 401, 1.74], [161, 3, 837, 4.99], [35, 1, 129, 2.09], [38, 1, 129, 2.66], [13893, 2, 310, 4.97], [2104, 3, 384, 3.17], [11814, 1, 246, 2.01], [95, 3, 1304, 1.69], [83, 2, 62, 1.96], [4232, 80, 162, 4.36], [1895, 3, 340, 5.62], [11813, 1, 362, 2.27], [11116, 1, 92, 1.94], [12212, 29, 131, 2.09], [8104, 1, 236, 2.65], [12979, 25, 758, 2.21], [76, 2, 126, 1.84], [1309, 1, 59, 1.75], [13928, 1, 54, 3.42], [10386, 2, 253, 3.84]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 10, 2.95], [305, 2, 7, 1.23], [615, 2, 11, 0.67], [2778, 2, 11, 1.07], [6936, 2, 11, 3.69], [5493, 2, 9, 0.75], [205, 2, 9, 1.23], [130, 1, 7, 0.67], [616, 2, 9, 0.77], [88, 10, 14, 0.73], [144, 2, 7, 3.09], [8648, 2, 9, 2.71], [2049, 3, 21, 0.5], [11681, 2, 9, 3.84], [8915, 2, 8, 0.93], [589, 2, 8, 0.61], [326, 2, 9, 1.94], [7036, 1, 7, 2.85], [8650, 2, 9, 2.48], [2327, 2, 7, 0.98], [593, 2, 14, 1.04], [3893, 1, 7, 0.83], [141, 2, 9, 1.58], [206, 2, 7, 1.25], [7004, 1, 7, 1.81], [151, 1, 7, 0.77], [3891, 1, 7, 1.49], [248, 1, 7, 0.75], [143, 2, 7, 2.36], [3980, 4, 7, 2.37], [146, 2, 7, 2.31], [2050, 3, 7, 3.3], [990, 2, 7, 0.69], [2055, 3, 9, 3.46], [7885, 4, 7, 1.27], [7886, 4, 9, 1.0], [2054, 3, 7, 3.66], [12870, 1, 9, 3.96], [362, 2, 7, 1.58], [8672, 2, 14, 2.43], [10993, 2, 9, 1.56], [3975, 4, 7, 2.76], [2057, 3, 9, 3.27], [5165, 1, 7, 2.14], [21793, 1, 7, 2.17], [13028, 3, 7, 1.25], [7084, 3, 7, 2.06], [145, 2, 7, 2.5], [2991, 3, 7, 2.7], [523, 2, 7, 1.98], [75, 2, 7, 0.89], [7005, 1, 7, 1.39], [3982, 3, 21, 2.58], [3981, 3, 21, 2.52], [33, 1, 7, 3.41], [142, 2, 9, 1.25], [20927, 1, 9, 2.82], [2912, 1, 7, 2.23], [6158, 2, 14, 1.75], [7887, 4, 9, 1.98], [5165, 2, 8, 1.6], [82, 2, 7, 1.27], [417, 2, 7, 0.93], [35, 1, 7, 3.32], [22316, 3, 9, 1.23], [214, 3, 14, 0.74], [11953, 1, 9, 0.9], [6497, 1, 9, 0.77], [61, 3, 7, 2.71], [229, 1, 7, 2.89], [192, 3, 27, 3.13], [11772, 1, 7, 2.54], [950, 1, 7, 0.73], [996, 2, 9, 3.33], [7567, 3, 7, 2.7], [11769, 1, 7, 1.85], [5946, 1, 7, 1.02], [346, 3, 7, 1.97], [6496, 1, 7, 2.09], [4176, 4, 9, 3.49], [972, 3, 14, 3.54], [39, 1, 7, 1.79], [74, 1, 7, 4.19], [411, 2, 7, 1.73], [7573, 1, 11, 4.14], [8677, 3, 7, 2.82], [12721, 2, 7, 2.09], [37, 1, 7, 1.52], [4253, 1, 7, 1.41], [2436, 4, 7, 0.85], [22317, 3, 9, 1.42], [2912, 2, 8, 1.8], [2104, 3, 10, 2.87], [1413, 15, 7, 1.12], [12212, 29, 7, 0.94], [336, 15, 7, 1.53], [1277, 1, 7, 1.25], [201, 3, 7, 2.61], [345, 3, 7, 1.94], [11085, 2, 8, 3.16], [21269, 3, 7, 5.0], [13023, 3, 7, 2.44], [12271, 2, 7, 2.96], [823, 1, 7, 1.08], [3, 2, 7, 2.43], [8673, 2, 7, 4.12], [22247, 2, 7, 3.69], [38, 1, 7, 1.27], [8676, 2, 7, 1.94], [10631, 2, 11, 2.59], [9, 1, 7, 0.69], [2805, 137, 7, 3.07], [10408, 10, 8, 3.22], [3577, 25, 7, 1.02], [3048, 3, 7, 2.5], [10388, 2, 7, 1.16], [1414, 15, 7, 1.0], [10936, 2, 7, 2.38], [13928, 1, 7, 2.18], [9081, 3, 16, 1.41], [11812, 1, 7, 0.9], [346, 1, 7, 1.96], [20498, 3, 8, 1.25], [9491, 21, 16, 1.06], [13244, 1, 7, 0.87], [4076, 3, 7, 2.54], [161, 3, 8, 4.87], [11814, 1, 7, 0.92], [9372, 1, 7, 4.23], [10407, 10, 10, 3.57], [12764, 2, 12, 1.71], [491, 10, 8, 3.21], [1523, 1, 7, 0.85], [972, 1, 7, 1.51], [11089, 1, 7, 3.33], [3576, 25, 7, 1.44], [61, 3, 223, 3.52], [229, 1, 83, 3.7], [192, 3, 1452, 4.58], [11772, 1, 232, 3.35], [950, 1, 64, 1.54], [996, 2, 244, 5.2], [7567, 3, 75, 3.5], [11769, 1, 175, 2.66], [5946, 1, 128, 2.07], [346, 3, 618, 2.83], [6496, 1, 43, 2.9], [4176, 4, 492, 5.21], [39, 1, 114, 3.74], [74, 1, 203, 5.23], [411, 2, 111, 2.54], [7573, 1, 375, 4.95], [8677, 3, 295, 4.51], [12721, 2, 308, 2.89], [37, 1, 114, 3.22], [4253, 1, 177, 2.46], [2436, 4, 114, 1.9], [22317, 3, 323, 3.38], [2912, 2, 394, 2.61], [2104, 3, 355, 3.68], [12212, 29, 122, 1.99], [336, 15, 110, 3.22], [1277, 1, 196, 2.19], [201, 3, 304, 4.31], [345, 3, 304, 2.92], [11085, 2, 548, 5.15], [21269, 3, 299, 6.0], [13023, 3, 602, 3.48], [823, 1, 43, 1.89], [3, 2, 122, 3.8], [8673, 2, 301, 4.93], [22247, 2, 292, 5.1], [38, 1, 120, 2.08], [8676, 2, 294, 2.99], [9, 1, 35, 1.74], [2805, 137, 186, 3.88], [10408, 10, 824, 4.03], [3577, 25, 95, 1.83], [3048, 3, 277, 3.72], [10388, 2, 237, 1.97], [1414, 15, 24, 2.03], [10936, 2, 144, 3.19], [13928, 1, 50, 2.99], [9081, 3, 520, 2.21], [11812, 1, 258, 1.7], [346, 1, 154, 3.01], [20498, 3, 631, 2.07], [9491, 21, 2394, 1.89], [13244, 1, 54, 1.68], [4076, 3, 205, 3.35], [161, 3, 730, 5.94], [11814, 1, 243, 1.73], [9372, 1, 247, 5.04], [10407, 10, 1232, 4.39], [12764, 2, 758, 3.42], [491, 10, 463, 4.01], [1523, 1, 51, 1.66], [972, 1, 100, 2.55], [11089, 1, 183, 4.14], [3576, 25, 109, 2.25]]</t>
+  </si>
+  <si>
+    <t>[[141, 2, 9, 0.88], [362, 2, 7, 1.46], [8650, 2, 7, 2.38], [5491, 2, 14, 0.77], [361, 2, 7, 0.77], [5493, 2, 7, 1.28], [589, 2, 9, 1.2], [8672, 2, 18, 2.15], [11685, 2, 9, 2.81], [417, 2, 7, 0.71], [6935, 2, 28, 3.99], [205, 2, 7, 0.69], [11681, 2, 13, 5.0], [11838, 2, 9, 1.27], [12721, 2, 14, 1.48], [248, 1, 7, 0.98], [11837, 2, 7, 1.12], [142, 2, 7, 0.73], [6936, 2, 9, 2.64], [2778, 2, 11, 1.59], [1446, 2, 11, 0.61], [8676, 2, 7, 1.7], [615, 2, 7, 1.42], [21793, 1, 8, 4.09], [305, 2, 9, 1.94], [593, 2, 10, 0.66], [22247, 2, 7, 1.93], [11835, 2, 7, 0.92], [616, 2, 7, 1.31], [411, 2, 7, 0.83], [990, 2, 7, 0.73], [8675, 2, 11, 2.44], [10574, 3, 9, 2.5], [145, 2, 7, 2.25], [1429, 2, 7, 0.9], [6158, 2, 10, 2.15], [10149, 3, 21, 1.49], [3495, 3, 26, 2.15], [2050, 3, 8, 1.22], [146, 2, 7, 1.72], [88, 10, 20, 3.07], [2054, 3, 10, 2.04], [75, 2, 7, 3.23], [10993, 2, 9, 1.25], [7885, 4, 11, 1.67], [144, 2, 7, 2.25], [7705, 2, 7, 2.74], [2424, 29, 7, 3.81], [346, 3, 10, 2.81], [2423, 80, 7, 3.0], [2859, 15, 7, 1.4], [7704, 2, 7, 2.74], [61, 3, 7, 0.69], [2423, 29, 7, 3.22], [9126, 1, 7, 2.18], [335, 3, 17, 0.93], [5165, 1, 7, 1.98], [2424, 80, 7, 3.81], [13028, 3, 7, 1.96], [201, 3, 9, 2.41], [346, 1, 7, 2.81], [214, 3, 15, 3.57], [60, 3, 8, 3.51], [1519, 3, 16, 0.67], [13023, 3, 8, 2.65], [308, 1, 9, 2.95], [1414, 15, 7, 0.81], [13034, 3, 10, 2.45], [2703, 3, 7, 3.36], [345, 3, 7, 0.94], [6494, 1, 7, 0.89], [7004, 1, 7, 1.27], [410, 1, 7, 1.0], [11770, 1, 7, 3.5], [7706, 2, 11, 2.62], [432, 3, 7, 2.39], [5208, 3, 11, 1.15], [3430, 15, 7, 1.66], [6952, 1, 7, 1.41], [13928, 1, 7, 2.28], [12373, 1, 11, 3.51], [20927, 1, 7, 2.02], [11954, 1, 7, 0.85], [94, 4, 7, 4.04], [1886, 2, 7, 0.85], [2331, 1, 7, 3.16], [3893, 1, 7, 1.78], [3891, 1, 7, 1.78], [114, 3, 7, 1.1], [11811, 1, 7, 1.93], [105, 3, 7, 0.92], [7886, 4, 9, 1.14], [3981, 3, 13, 0.91], [1274, 1, 7, 1.6], [952, 4, 7, 3.68], [13033, 3, 7, 1.39], [944, 15, 7, 0.71], [9690, 1, 7, 2.13], [11089, 1, 7, 2.23], [3, 2, 7, 3.85], [1490, 1, 7, 0.85], [1309, 1, 7, 1.41], [5946, 1, 7, 1.78], [5584, 3, 7, 2.72], [8898, 3, 7, 1.42], [5812, 3, 7, 2.91], [5733, 2, 8, 2.41], [7708, 2, 7, 2.62], [10407, 10, 10, 3.72], [10410, 10, 10, 3.76], [95, 3, 13, 4.5], [3028, 3, 7, 0.85], [3478, 2, 7, 1.93], [8274, 3, 7, 2.79], [7703, 2, 7, 2.62], [9342, 2, 7, 0.93], [10398, 2, 7, 2.62], [20555, 2, 7, 1.5], [3889, 1, 7, 1.78], [21003, 2, 7, 3.61], [13258, 29, 13, 3.65], [22558, 3, 7, 4.38], [9082, 3, 23, 2.83], [3980, 4, 7, 2.76], [10406, 10, 12, 3.4], [6497, 1, 7, 3.33], [20969, 3, 7, 1.66], [1339, 3, 19, 1.0], [963, 3, 7, 2.7], [192, 3, 21, 1.64], [5165, 2, 8, 1.99], [20196, 2, 7, 3.8], [10516, 3, 7, 3.73], [11603, 2, 7, 2.64], [2703, 3, 362, 4.32], [345, 3, 358, 1.9], [6494, 1, 62, 1.85], [7004, 1, 89, 2.23], [410, 1, 125, 1.96], [11770, 1, 245, 4.45], [7706, 2, 199, 4.84], [432, 3, 352, 3.35], [5208, 3, 598, 2.1], [3430, 15, 82, 2.62], [6952, 1, 213, 2.37], [13928, 1, 56, 3.24], [12373, 1, 636, 4.47], [20927, 1, 94, 2.98], [11954, 1, 238, 1.81], [94, 4, 137, 5.0], [1886, 2, 187, 1.81], [2331, 1, 138, 4.12], [3893, 1, 146, 2.73], [3891, 1, 146, 2.73], [114, 3, 276, 3.23], [11811, 1, 536, 2.9], [105, 3, 291, 1.88], [7886, 4, 57, 2.53], [3981, 3, 1999, 1.89], [1274, 1, 98, 2.56], [952, 4, 87, 4.63], [13033, 3, 667, 2.57], [944, 15, 52, 1.67], [9690, 1, 89, 3.09], [11089, 1, 203, 3.19], [3, 2, 140, 4.81], [1490, 1, 61, 1.81], [1309, 1, 61, 2.37], [5946, 1, 146, 2.73], [5584, 3, 272, 3.68], [8898, 3, 331, 2.37], [5812, 3, 703, 3.88], [5733, 2, 47, 3.33], [7708, 2, 210, 3.57], [10407, 10, 1385, 4.67], [10410, 10, 1385, 4.71], [95, 3, 1176, 5.48], [3028, 3, 196, 1.81], [3478, 2, 90, 2.89], [7703, 2, 210, 3.57], [9342, 2, 553, 1.9], [10398, 2, 173, 3.58], [20555, 2, 68, 2.46], [3889, 1, 146, 2.73], [21003, 2, 337, 4.57], [13258, 29, 46, 4.61], [22558, 3, 557, 5.34], [9082, 3, 2915, 3.83], [3980, 4, 571, 3.72], [10406, 10, 2088, 4.36], [6497, 1, 42, 4.28], [20969, 3, 700, 2.62], [1339, 3, 2058, 1.94], [963, 3, 473, 3.66], [192, 3, 1686, 2.6], [5165, 2, 451, 2.94], [20196, 2, 337, 4.75], [10516, 3, 679, 4.68], [11603, 2, 126, 3.5]]</t>
+  </si>
+  <si>
+    <t>[[2778, 2, 21, 1.08], [6936, 2, 9, 2.9], [8672, 2, 18, 2.18], [305, 2, 9, 1.46], [615, 2, 11, 1.23], [145, 2, 7, 2.25], [12721, 2, 11, 1.74], [130, 1, 7, 0.69], [2327, 2, 7, 1.82], [361, 2, 7, 0.77], [2328, 2, 7, 2.1], [146, 2, 9, 2.15], [8675, 2, 8, 1.61], [11681, 2, 9, 2.3], [141, 2, 7, 0.77], [362, 2, 7, 1.58], [205, 2, 9, 0.99], [5491, 2, 14, 0.77], [8673, 2, 14, 2.44], [8676, 2, 9, 1.6], [144, 2, 9, 2.32], [8650, 2, 9, 4.63], [417, 2, 7, 0.77], [11837, 2, 7, 1.06], [3, 2, 7, 2.41], [6097, 80, 9, 4.67], [2423, 29, 7, 2.93], [6497, 1, 9, 0.6], [6097, 29, 9, 4.96], [11836, 2, 9, 1.44], [990, 2, 7, 1.0], [2424, 29, 7, 2.34], [593, 2, 8, 3.23], [6098, 80, 7, 4.37], [523, 2, 7, 1.46], [11739, 2, 7, 1.17], [944, 15, 7, 0.77], [88, 10, 19, 2.15], [10993, 2, 7, 1.0], [13260, 29, 7, 2.28], [8915, 2, 7, 1.5], [326, 2, 7, 0.96], [75, 2, 7, 3.0], [1413, 15, 7, 0.96], [10574, 3, 10, 2.38], [335, 3, 17, 3.44], [411, 2, 7, 1.77], [1339, 1, 7, 0.83], [1050, 2, 7, 0.73], [947, 15, 7, 0.98], [1339, 3, 21, 0.65], [151, 1, 7, 1.25], [6496, 1, 7, 2.52], [2859, 15, 7, 1.7], [7704, 2, 9, 4.35], [346, 1, 7, 0.83], [214, 3, 15, 3.57], [13258, 29, 13, 2.82], [345, 3, 7, 0.96], [10149, 3, 21, 1.75], [1490, 1, 7, 4.96], [346, 3, 8, 0.82], [1243, 2, 7, 2.39], [7004, 1, 7, 1.58], [11738, 2, 7, 1.81], [201, 3, 7, 3.31], [22558, 3, 46, 3.38], [432, 3, 7, 2.21], [2438, 1, 7, 1.99], [7705, 2, 9, 4.35], [5208, 3, 11, 1.3], [2912, 1, 7, 1.83], [229, 1, 7, 2.59], [61, 3, 7, 0.85], [963, 3, 7, 0.76], [10407, 10, 10, 3.72], [7706, 2, 9, 4.35], [2331, 1, 7, 2.02], [21793, 1, 8, 5.0], [13928, 1, 7, 2.28], [12229, 2, 7, 1.12], [3478, 2, 7, 1.93], [1548, 1, 7, 2.1], [2703, 3, 7, 4.45], [11844, 2, 7, 1.23], [13258, 25, 7, 2.31], [11490, 1, 7, 0.87], [114, 3, 7, 1.05], [7036, 1, 7, 0.87], [8938, 2, 7, 0.83], [9126, 1, 7, 2.29], [11687, 2, 7, 1.29], [10408, 10, 10, 3.27], [956, 2, 7, 1.35], [94, 4, 7, 4.04], [1886, 2, 7, 0.85], [410, 1, 7, 1.0], [11159, 1, 14, 1.67], [7708, 2, 7, 3.7], [2438, 2, 8, 2.12], [11690, 2, 7, 1.01], [9065, 2, 7, 1.04], [12870, 1, 7, 1.89], [9760, 29, 7, 1.77], [11161, 1, 10, 3.62], [11689, 2, 7, 1.27], [5976, 1, 7, 2.23], [7005, 1, 7, 2.04], [21781, 2, 7, 0.9], [1274, 1, 7, 3.81], [2805, 137, 10, 3.39], [20927, 1, 7, 1.25], [12373, 1, 11, 3.51], [2991, 3, 7, 4.76], [1699, 3, 7, 2.27], [5584, 3, 7, 2.72], [9209, 29, 7, 2.36], [3495, 3, 21, 2.56], [9690, 1, 7, 2.13], [7007, 1, 7, 2.46], [9239, 29, 7, 0.92], [11811, 1, 7, 1.93], [8600, 1, 7, 1.84], [9239, 25, 7, 0.92], [247, 1, 7, 2.96], [5769, 3, 10, 0.93], [9491, 21, 16, 3.09], [5076, 1, 7, 3.75], [13198, 29, 7, 2.55], [12764, 2, 10, 1.43], [9372, 1, 7, 4.36], [5869, 1, 7, 4.08], [7702, 2, 45, 2.47], [95, 3, 13, 0.77], [5208, 3, 669, 2.26], [2912, 1, 57, 2.79], [229, 1, 97, 3.55], [61, 3, 251, 1.81], [963, 3, 486, 1.72], [10407, 10, 1385, 4.67], [7706, 2, 176, 5.37], [2331, 1, 139, 2.98], [21793, 1, 259, 6.0], [13928, 1, 56, 3.24], [12229, 2, 171, 3.15], [3478, 2, 85, 2.89], [1548, 1, 111, 3.28], [2703, 3, 327, 5.63], [11844, 2, 327, 2.2], [13258, 25, 93, 3.26], [11490, 1, 130, 1.83], [114, 3, 290, 2.02], [7036, 1, 151, 1.82], [8938, 2, 229, 1.79], [9126, 1, 83, 3.25], [11687, 2, 359, 2.25], [10408, 10, 909, 4.23], [956, 2, 122, 2.31], [94, 4, 137, 5.0], [1886, 2, 187, 1.81], [410, 1, 125, 1.96], [11159, 1, 583, 2.63], [7708, 2, 198, 4.66], [2438, 2, 740, 3.07], [11690, 2, 359, 1.96], [9065, 2, 359, 1.99], [12870, 1, 165, 2.84], [9760, 29, 85, 2.73], [11161, 1, 585, 4.57], [11689, 2, 359, 2.23], [5976, 1, 184, 3.19], [7005, 1, 89, 3.0], [21781, 2, 124, 1.86], [1274, 1, 95, 4.77], [2805, 137, 208, 4.36], [20927, 1, 94, 2.21], [12373, 1, 636, 4.47], [2991, 3, 185, 5.72], [1699, 3, 248, 3.23], [5584, 3, 272, 3.68], [9209, 29, 39, 3.32], [3495, 3, 1147, 3.51], [9690, 1, 89, 3.09], [7007, 1, 31, 3.18], [9239, 29, 34, 1.88], [11811, 1, 536, 2.9], [8600, 1, 172, 2.8], [9239, 25, 103, 1.88], [247, 1, 103, 3.92], [5769, 3, 1242, 2.13], [9491, 21, 2455, 4.07], [5076, 1, 151, 4.71], [13198, 29, 73, 3.51], [12764, 2, 836, 2.87], [9372, 1, 271, 5.32], [5869, 1, 243, 5.04], [7702, 2, 209, 3.43], [95, 3, 1345, 1.73]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 15, 2.15], [141, 2, 9, 0.92], [2778, 2, 16, 1.69], [362, 2, 7, 1.44], [361, 2, 7, 1.6], [130, 1, 7, 0.69], [6935, 2, 19, 5.0], [12721, 2, 21, 3.52], [8676, 2, 7, 1.6], [2049, 3, 21, 0.73], [417, 2, 7, 1.6], [3, 2, 7, 2.47], [22247, 2, 7, 1.83], [6936, 2, 9, 1.65], [523, 2, 7, 1.52], [305, 2, 7, 1.12], [8650, 2, 9, 3.19], [2328, 2, 9, 2.57], [11739, 2, 7, 1.31], [8648, 2, 7, 3.25], [2776, 2, 7, 2.29], [2327, 2, 7, 1.48], [616, 2, 9, 2.57], [411, 2, 7, 1.48], [8674, 2, 7, 1.54], [2423, 29, 7, 2.76], [589, 2, 7, 1.94], [6497, 1, 9, 1.1], [2805, 137, 10, 3.93], [11835, 2, 7, 1.19], [6097, 80, 9, 4.96], [146, 2, 7, 2.25], [326, 2, 7, 1.48], [6097, 29, 7, 1.85], [583, 2, 7, 1.39], [2423, 80, 7, 2.71], [10149, 3, 21, 3.22], [145, 2, 7, 2.25], [11836, 2, 7, 1.29], [144, 2, 7, 2.25], [75, 2, 7, 3.0], [10574, 3, 10, 2.88], [6496, 1, 7, 2.52], [308, 1, 13, 1.91], [1413, 15, 7, 0.83], [2054, 3, 7, 2.44], [2422, 29, 7, 4.27], [1243, 2, 7, 2.04], [21793, 1, 8, 5.0], [1886, 2, 7, 0.85], [8915, 2, 7, 1.5], [944, 15, 7, 0.77], [247, 1, 7, 2.83], [1490, 1, 7, 4.96], [2859, 15, 7, 1.4], [335, 3, 17, 2.53], [1414, 15, 7, 0.92], [201, 3, 9, 0.79], [13928, 1, 7, 2.49], [3478, 2, 7, 1.93], [6158, 2, 11, 2.4], [7084, 3, 7, 1.83], [3934, 5, 12, 2.69], [11489, 1, 7, 0.79], [12526, 2, 7, 3.02], [1703, 2, 7, 1.67], [5812, 3, 7, 3.84], [11767, 1, 7, 2.2], [61, 3, 7, 0.85], [94, 4, 7, 2.68], [186, 3, 12, 1.06], [214, 3, 15, 3.57], [1519, 3, 15, 0.72], [1050, 2, 7, 0.71], [9491, 21, 16, 2.74], [11490, 1, 7, 0.67], [1309, 1, 7, 1.41], [2821, 3, 16, 0.91], [10398, 2, 7, 1.37], [5813, 3, 7, 3.84], [192, 3, 21, 3.71], [8898, 3, 7, 1.18], [8599, 1, 7, 1.36], [5811, 3, 8, 4.0], [229, 1, 7, 2.74], [11771, 1, 7, 2.99], [1699, 3, 7, 2.95], [2438, 2, 8, 2.12], [2991, 3, 7, 4.73], [3495, 3, 21, 2.56], [11769, 1, 7, 2.2], [8943, 3, 7, 0.75], [11811, 1, 7, 1.93], [1339, 3, 21, 0.65], [13928, 2, 7, 2.28], [12764, 2, 8, 1.16], [19687, 1, 7, 2.33], [7036, 1, 7, 0.87], [346, 3, 8, 0.74], [13260, 29, 7, 2.46], [22573, 2, 7, 1.91], [10124, 1, 7, 4.18], [9690, 1, 7, 2.13], [5584, 3, 7, 5.0], [3334, 5, 7, 3.93], [18964, 1, 7, 2.18], [7004, 1, 7, 1.44], [1277, 1, 7, 0.92], [2438, 1, 7, 1.99], [20927, 1, 7, 1.18], [1523, 1, 7, 2.51], [4001, 3, 17, 2.0], [11886, 2, 7, 1.44], [1701, 2, 7, 0.96], [45, 2, 7, 4.64], [11678, 1, 7, 2.86], [21269, 3, 7, 4.2], [8286, 2, 8, 1.09], [9373, 5, 7, 5.0], [10181, 26, 8, 0.81], [23031, 3, 7, 3.25], [3984, 3, 8, 1.07], [10516, 3, 7, 2.5], [11677, 1, 7, 2.95], [346, 1, 7, 0.83], [1339, 1, 7, 0.92], [3979, 3, 8, 1.56], [19924, 2, 7, 0.79], [23032, 3, 7, 2.86], [9069, 1, 7, 2.13], [9065, 2, 7, 1.04], [5976, 1, 7, 2.23], [8285, 2, 8, 0.85], [7005, 1, 7, 2.33], [11767, 1, 192, 3.15], [61, 3, 251, 1.81], [94, 4, 141, 3.64], [186, 3, 790, 2.01], [1519, 3, 1943, 1.67], [9491, 21, 2591, 3.7], [11490, 1, 130, 1.63], [1309, 1, 61, 2.37], [2821, 3, 1510, 2.09], [10398, 2, 175, 2.33], [5813, 3, 700, 4.8], [8898, 3, 332, 2.14], [8599, 1, 173, 2.31], [5811, 3, 700, 4.96], [229, 1, 96, 3.7], [11771, 1, 246, 3.94], [1699, 3, 247, 3.91], [2438, 2, 740, 3.07], [2991, 3, 179, 6.0], [3495, 3, 1147, 3.51], [11769, 1, 192, 3.15], [8943, 3, 457, 1.7], [11811, 1, 536, 2.9], [1339, 3, 1955, 1.88], [13928, 2, 28, 3.24], [12764, 2, 880, 2.11], [19687, 1, 36, 3.29], [7036, 1, 151, 1.82], [346, 3, 736, 1.71], [13260, 29, 81, 3.64], [22573, 2, 84, 2.87], [10124, 1, 119, 5.14], [9690, 1, 89, 3.09], [5584, 3, 258, 6.0], [3334, 5, 212, 4.89], [18964, 1, 80, 3.14], [7004, 1, 94, 2.4], [1277, 1, 233, 1.88], [2438, 1, 62, 2.95], [20927, 1, 94, 2.14], [1523, 1, 56, 3.47], [4001, 3, 958, 2.96], [11886, 2, 229, 2.4], [1701, 2, 201, 1.92], [45, 2, 125, 5.6], [11678, 1, 532, 3.82], [21269, 3, 339, 5.16], [8286, 2, 566, 2.04], [9373, 5, 103, 6.0], [10181, 26, 165, 1.77], [23031, 3, 486, 4.21], [3984, 3, 1971, 2.03], [10516, 3, 693, 3.45], [11677, 1, 530, 3.91], [346, 1, 184, 1.79], [1339, 1, 86, 1.88], [3979, 3, 958, 2.52], [19924, 2, 77, 1.75], [23032, 3, 614, 3.82], [9069, 1, 142, 3.09], [9065, 2, 359, 1.99], [5976, 1, 184, 3.19], [8285, 2, 573, 1.8], [7005, 1, 42, 3.14]]</t>
+  </si>
+  <si>
+    <t>[[305, 2, 7, 0.88], [2328, 2, 14, 1.85], [130, 1, 7, 0.69], [8650, 2, 9, 2.32], [2778, 2, 16, 1.61], [5491, 2, 9, 0.74], [8672, 2, 15, 1.94], [143, 2, 7, 0.93], [362, 2, 7, 1.05], [145, 2, 7, 1.91], [6936, 2, 9, 3.12], [5493, 2, 9, 2.06], [361, 2, 7, 1.86], [417, 2, 7, 1.86], [11681, 2, 9, 2.3], [205, 2, 7, 1.08], [589, 2, 9, 0.66], [75, 2, 9, 1.92], [11737, 2, 7, 1.75], [146, 2, 7, 1.1], [523, 2, 7, 1.21], [12721, 2, 13, 3.3], [8853, 2, 7, 3.7], [8673, 2, 27, 2.2], [326, 2, 9, 1.68], [11835, 2, 7, 0.69], [308, 1, 11, 3.94], [8915, 2, 7, 2.76], [144, 2, 7, 1.91], [1005, 2, 7, 2.48], [8675, 2, 8, 2.64], [88, 10, 26, 1.79], [434, 2, 9, 1.04], [11739, 2, 7, 1.5], [142, 2, 7, 1.86], [8676, 2, 7, 4.16], [2424, 29, 7, 2.34], [6158, 2, 12, 1.79], [7704, 2, 9, 3.71], [2423, 29, 7, 2.29], [11738, 2, 7, 1.52], [11836, 2, 11, 1.36], [2424, 80, 7, 2.57], [1413, 15, 7, 1.24], [7705, 2, 7, 4.08], [2423, 80, 7, 2.23], [944, 15, 7, 1.02], [3, 2, 9, 2.19], [3478, 2, 7, 2.95], [7004, 1, 7, 2.58], [1414, 15, 7, 0.81], [2859, 15, 7, 2.81], [74, 1, 7, 2.15], [10149, 3, 21, 1.49], [6497, 1, 7, 0.87], [3429, 15, 7, 0.79], [10993, 2, 9, 1.25], [13928, 1, 7, 2.49], [346, 1, 7, 2.81], [18964, 1, 7, 2.18], [11919, 1, 7, 1.14], [346, 3, 8, 3.06], [60, 3, 8, 3.51], [13260, 29, 7, 2.5], [7036, 1, 7, 3.14], [94, 4, 7, 4.04], [1339, 3, 21, 0.65], [6952, 1, 7, 3.06], [3893, 1, 7, 2.6], [2991, 3, 7, 4.18], [13034, 3, 11, 2.28], [411, 2, 7, 1.94], [11089, 1, 7, 2.23], [1050, 2, 7, 0.66], [3891, 1, 7, 2.6], [1339, 1, 7, 0.83], [14037, 3, 9, 1.91], [7707, 2, 7, 2.41], [21793, 1, 8, 4.09], [563, 2, 7, 1.19], [8274, 3, 7, 1.6], [6630, 3, 7, 3.55], [3889, 1, 7, 2.6], [2912, 1, 9, 1.48], [1243, 2, 7, 2.33], [1490, 1, 7, 4.96], [7708, 2, 7, 3.01], [192, 3, 26, 4.24], [11581, 29, 7, 1.89], [9126, 1, 7, 2.41], [7886, 4, 9, 0.87], [13023, 3, 8, 0.8], [3495, 3, 21, 2.56], [5208, 3, 11, 1.4], [5940, 3, 7, 2.56], [11490, 1, 7, 0.92], [1309, 1, 7, 1.41], [1049, 2, 7, 0.69], [229, 1, 7, 2.59], [5165, 1, 7, 1.67], [22558, 3, 7, 4.38], [12229, 2, 7, 1.12], [13033, 3, 7, 1.68], [2331, 1, 7, 3.54], [201, 3, 7, 1.16], [2805, 137, 10, 4.22], [247, 1, 7, 0.97], [83, 2, 7, 1.44], [1274, 1, 7, 2.25], [6496, 1, 7, 2.98], [332, 2, 7, 1.19], [214, 3, 15, 3.57], [202, 2, 7, 1.19], [951, 4, 7, 3.07], [8898, 3, 7, 1.42], [20555, 2, 7, 1.12], [1703, 2, 7, 5.0], [9690, 1, 7, 2.13], [11770, 1, 7, 3.89], [335, 3, 21, 2.53], [942, 3, 7, 2.26], [7005, 1, 7, 1.94], [5812, 3, 7, 2.49], [114, 3, 7, 3.82], [21269, 3, 7, 5.0], [3934, 5, 12, 2.69], [8635, 3, 7, 1.6], [9827, 3, 7, 0.75], [10406, 10, 12, 3.64], [4940, 1, 7, 0.81], [186, 3, 12, 2.32], [1886, 2, 9, 0.85], [10527, 3, 13, 2.94], [10411, 10, 10, 3.51], [7885, 4, 7, 1.08], [9491, 21, 16, 2.74], [6952, 1, 213, 5.34], [3893, 1, 145, 3.56], [2991, 3, 179, 6.0], [13034, 3, 665, 4.56], [411, 2, 121, 3.53], [11089, 1, 203, 3.19], [3891, 1, 145, 3.56], [1339, 1, 81, 2.01], [7707, 2, 198, 3.72], [21793, 1, 282, 5.05], [563, 2, 82, 2.37], [6630, 3, 111, 4.51], [3889, 1, 145, 3.56], [2912, 1, 13, 2.77], [1243, 2, 111, 4.11], [1490, 1, 58, 5.92], [7708, 2, 209, 3.97], [192, 3, 1582, 5.48], [11581, 29, 71, 2.85], [9126, 1, 83, 3.37], [7886, 4, 162, 2.05], [13023, 3, 714, 1.76], [3495, 3, 1147, 3.51], [5208, 3, 149, 2.33], [5940, 3, 282, 3.52], [11490, 1, 130, 1.88], [1309, 1, 61, 2.37], [229, 1, 97, 3.55], [5165, 1, 57, 2.63], [22558, 3, 557, 5.34], [12229, 2, 171, 3.15], [13033, 3, 700, 2.64], [2331, 1, 138, 4.5], [201, 3, 334, 2.34], [2805, 137, 211, 5.18], [247, 1, 104, 1.92], [83, 2, 60, 2.4], [1274, 1, 97, 3.21], [6496, 1, 44, 4.35], [332, 2, 82, 2.37], [214, 3, 253, 4.28], [202, 2, 82, 2.37], [951, 4, 111, 4.03], [8898, 3, 331, 2.37], [20555, 2, 68, 2.08], [1703, 2, 188, 6.0], [9690, 1, 89, 3.09], [11770, 1, 249, 4.85], [942, 3, 351, 3.22], [7005, 1, 94, 2.9], [5812, 3, 661, 4.78], [114, 3, 95, 4.64], [21269, 3, 332, 6.0], [3934, 5, 619, 3.65], [9827, 3, 98, 1.93], [10406, 10, 1983, 4.6], [4940, 1, 144, 1.77], [186, 3, 782, 3.28], [1886, 2, 177, 2.03], [10527, 3, 1029, 3.91], [10411, 10, 909, 4.47], [7885, 4, 74, 1.89], [9491, 21, 2591, 3.7]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 11, 3.36], [141, 2, 7, 1.09], [589, 2, 12, 0.75], [2327, 2, 9, 1.37], [2778, 2, 14, 1.33], [11681, 2, 30, 4.17], [6936, 2, 13, 3.9], [362, 2, 7, 1.69], [2328, 2, 9, 1.85], [205, 2, 7, 0.9], [130, 1, 7, 0.69], [2775, 2, 7, 1.33], [2049, 3, 10, 0.82], [8649, 2, 7, 2.82], [2776, 2, 7, 1.46], [361, 2, 7, 1.36], [143, 2, 7, 1.52], [593, 2, 9, 1.21], [206, 2, 7, 2.29], [5493, 2, 7, 1.16], [1429, 2, 7, 3.54], [523, 2, 7, 1.49], [7004, 1, 7, 1.02], [21793, 1, 7, 3.22], [413, 1, 7, 1.56], [12350, 1, 7, 4.69], [1124, 2, 7, 1.73], [7036, 1, 7, 2.95], [5165, 1, 7, 2.31], [12353, 1, 7, 4.69], [12349, 1, 9, 3.94], [145, 2, 7, 2.25], [434, 2, 7, 1.26], [248, 1, 7, 0.92], [201, 3, 11, 3.77], [6952, 1, 11, 3.9], [6097, 80, 7, 5.0], [10993, 2, 7, 1.66], [345, 3, 9, 1.93], [146, 2, 7, 2.25], [144, 2, 7, 1.72], [7084, 3, 7, 3.68], [11770, 1, 9, 0.74], [2050, 3, 7, 2.76], [12352, 1, 7, 4.69], [3891, 1, 7, 1.46], [2912, 1, 7, 2.23], [7005, 1, 7, 1.1], [998, 2, 7, 1.56], [997, 2, 7, 1.66], [432, 3, 7, 2.04], [3893, 1, 7, 1.42], [5165, 2, 12, 1.23], [12870, 1, 7, 2.29], [9372, 1, 7, 3.52], [6097, 29, 7, 5.0], [2424, 80, 7, 1.71], [20927, 1, 7, 0.98], [11772, 1, 7, 3.25], [6098, 80, 9, 4.06], [7885, 4, 7, 1.67], [10149, 3, 24, 1.73], [11089, 1, 7, 2.01], [3334, 5, 7, 2.91], [10574, 3, 8, 0.98], [12351, 1, 7, 2.23], [1492, 1, 7, 1.33], [4032, 29, 7, 1.54], [346, 3, 7, 3.55], [3889, 1, 7, 2.23], [1700, 2, 7, 1.23], [12304, 1, 7, 4.18], [1519, 3, 20, 0.94], [3576, 25, 7, 3.39], [13028, 3, 7, 4.42], [2912, 2, 8, 2.37], [214, 3, 15, 1.34], [1490, 1, 7, 1.39], [13034, 3, 7, 4.12], [972, 3, 7, 1.94], [229, 1, 7, 4.24], [11583, 29, 7, 0.94], [161, 3, 8, 4.24], [11426, 25, 7, 0.81], [5151, 2, 7, 0.87], [346, 1, 7, 3.55], [2331, 1, 7, 1.09], [8120, 3, 7, 3.15], [11490, 1, 7, 1.25], [995, 2, 7, 2.23], [3478, 2, 7, 1.19], [5076, 1, 7, 0.99], [5812, 3, 10, 4.4], [13893, 2, 7, 4.11], [10, 2, 7, 0.75], [9289, 29, 7, 2.08], [1309, 1, 7, 0.69], [410, 1, 7, 1.61], [12764, 2, 9, 1.46], [13023, 3, 10, 2.28], [2160, 68, 7, 1.96], [3575, 25, 7, 1.83], [2805, 137, 7, 2.91], [11404, 2, 7, 1.08], [3577, 25, 7, 1.0], [13280, 1, 7, 2.62], [75, 2, 7, 0.71], [2438, 2, 8, 2.12], [957, 2, 7, 2.0], [11814, 1, 7, 1.1], [11813, 1, 7, 2.91], [9069, 1, 7, 1.21], [9971, 2, 7, 2.19], [9967, 2, 7, 1.14], [11150, 2, 8, 0.79], [192, 3, 13, 3.54], [8943, 3, 7, 0.75], [9491, 21, 13, 2.59], [8283, 2, 8, 3.44], [5584, 3, 7, 5.0], [22317, 3, 7, 0.85], [24257, 1, 7, 2.78], [13249, 29, 7, 2.16], [9964, 2, 7, 3.08], [21697, 3, 7, 0.87], [9081, 3, 20, 1.8], [4586, 10, 17, 1.5], [105, 3, 7, 1.6], [4076, 3, 7, 2.73], [10609, 1, 7, 1.79], [9965, 2, 7, 2.19], [1413, 15, 7, 3.17], [335, 3, 15, 3.16], [10407, 10, 12, 3.8], [346, 3, 703, 4.43], [3889, 1, 146, 3.11], [1700, 2, 84, 2.11], [12304, 1, 125, 5.06], [1519, 3, 1827, 2.61], [3576, 25, 112, 4.27], [13028, 3, 164, 5.3], [2912, 2, 445, 3.24], [214, 3, 761, 2.22], [1490, 1, 59, 2.27], [13034, 3, 665, 5.21], [972, 3, 665, 2.81], [229, 1, 95, 5.12], [11583, 29, 66, 1.82], [161, 3, 840, 5.12], [11426, 25, 133, 1.91], [5151, 2, 27, 1.97], [346, 1, 176, 4.43], [2331, 1, 137, 1.97], [8120, 3, 277, 4.02], [11490, 1, 92, 2.35], [995, 2, 287, 3.11], [3478, 2, 89, 2.07], [5076, 1, 152, 1.87], [5812, 3, 658, 5.76], [13893, 2, 316, 4.99], [10, 2, 25, 1.24], [9289, 29, 70, 2.96], [1309, 1, 61, 1.57], [410, 1, 25, 2.1], [12764, 2, 871, 2.34], [13023, 3, 665, 4.16], [2160, 68, 155, 2.84], [3575, 25, 118, 2.71], [2805, 137, 212, 3.79], [11404, 2, 115, 2.75], [3577, 25, 98, 2.1], [13280, 1, 375, 3.5], [75, 2, 163, 1.81], [2438, 2, 733, 3.01], [957, 2, 25, 3.03], [11814, 1, 265, 1.98], [11813, 1, 367, 3.79], [9069, 1, 137, 2.31], [9971, 2, 317, 3.07], [9967, 2, 317, 2.02], [11150, 2, 414, 1.67], [192, 3, 1512, 4.6], [8943, 3, 136, 1.4], [9491, 21, 2566, 3.48], [8283, 2, 522, 4.32], [5584, 3, 266, 6.0], [22317, 3, 379, 1.73], [24257, 1, 45, 3.68], [13249, 29, 75, 3.04], [9964, 2, 317, 3.95], [21697, 3, 203, 1.97], [9081, 3, 565, 2.68], [4586, 10, 1732, 2.4], [105, 3, 286, 2.48], [4076, 3, 235, 3.61], [10609, 1, 335, 2.67], [9965, 2, 317, 3.07], [1413, 15, 92, 4.02], [335, 3, 304, 3.65], [10407, 10, 1372, 4.67]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 15, 2.66], [305, 2, 7, 1.49], [6935, 2, 23, 4.55], [141, 2, 7, 2.37], [2049, 3, 16, 0.52], [205, 2, 9, 0.71], [12721, 2, 10, 1.78], [130, 1, 7, 0.98], [144, 2, 7, 0.94], [589, 2, 15, 0.55], [362, 2, 9, 2.65], [146, 2, 7, 1.67], [145, 2, 7, 0.91], [593, 2, 11, 2.33], [990, 2, 7, 1.04], [1777, 1, 7, 2.22], [8915, 2, 10, 0.95], [2328, 2, 7, 1.01], [8648, 2, 9, 2.52], [6936, 2, 10, 2.57], [8650, 2, 7, 3.41], [22247, 2, 9, 2.35], [2778, 2, 7, 1.63], [1007, 2, 12, 0.66], [88, 10, 16, 1.98], [10, 2, 14, 2.05], [8677, 3, 8, 3.19], [8649, 2, 7, 3.11], [10149, 3, 25, 3.26], [2054, 3, 11, 1.86], [412, 1, 7, 1.75], [13028, 3, 7, 1.29], [10825, 21, 13, 2.01], [11681, 2, 11, 2.92], [361, 2, 7, 1.5], [413, 1, 7, 1.89], [7004, 1, 9, 0.99], [2055, 3, 7, 1.92], [2057, 3, 7, 3.71], [7084, 3, 7, 3.14], [411, 2, 7, 1.17], [308, 1, 7, 2.44], [410, 1, 7, 1.42], [6158, 2, 10, 2.87], [8938, 2, 8, 1.58], [8676, 2, 7, 1.94], [1124, 2, 12, 0.75], [432, 3, 7, 2.04], [167, 3, 9, 2.95], [45, 2, 7, 3.67], [7036, 1, 7, 3.16], [3495, 3, 26, 2.72], [7005, 1, 7, 0.99], [5081, 2, 12, 1.3], [94, 4, 7, 3.29], [9827, 3, 7, 1.13], [5812, 3, 8, 4.4], [3893, 1, 7, 1.02], [3889, 1, 7, 1.02], [12870, 1, 9, 5.0], [2049, 1, 7, 2.01], [3891, 1, 7, 1.02], [168, 3, 9, 2.11], [6097, 29, 11, 4.7], [1504, 2, 11, 1.58], [335, 3, 22, 3.16], [6097, 80, 7, 4.71], [11737, 2, 9, 1.41], [95, 3, 21, 0.93], [6098, 29, 9, 4.12], [346, 1, 9, 1.11], [998, 2, 7, 3.14], [79, 1, 7, 0.98], [214, 3, 15, 0.99], [3980, 4, 7, 2.74], [20927, 1, 7, 1.75], [9069, 1, 9, 2.16], [22316, 3, 9, 1.22], [83, 2, 7, 0.85], [6098, 80, 7, 4.14], [20498, 1, 7, 2.94], [8898, 3, 7, 4.48], [9760, 29, 7, 0.94], [1070, 7, 29, 2.72], [997, 2, 7, 2.84], [1622, 1, 9, 0.53], [14017, 3, 7, 1.29], [7567, 3, 9, 3.44], [13034, 3, 10, 2.73], [22554, 10, 15, 0.87], [13260, 29, 9, 2.4], [11116, 1, 9, 0.81], [1243, 2, 7, 1.52], [12924, 1, 9, 0.61], [22317, 3, 20, 1.6], [20498, 3, 10, 3.5], [5946, 1, 7, 1.02], [996, 2, 7, 4.17], [35, 1, 9, 2.6], [5086, 1, 11, 2.14], [5813, 3, 7, 2.04], [9691, 1, 7, 3.2], [995, 2, 7, 4.49], [1413, 15, 9, 0.75], [1080, 3, 7, 1.21], [952, 4, 7, 4.77], [11085, 2, 7, 0.86], [2424, 80, 7, 4.26], [8557, 3, 7, 2.36], [3049, 3, 7, 4.11], [1703, 2, 7, 2.72], [215, 4, 7, 5.0], [20486, 3, 12, 3.26], [39, 1, 7, 1.79], [3900, 3, 7, 2.68], [4076, 3, 7, 5.0], [9081, 3, 15, 3.06], [13023, 3, 8, 2.62], [8274, 3, 7, 1.02], [8943, 3, 7, 0.96], [34, 1, 7, 1.23], [20486, 1, 7, 2.87], [6497, 1, 7, 2.18], [8104, 1, 9, 0.75], [11510, 3, 10, 2.97], [2854, 21, 13, 1.09], [38, 1, 7, 2.24], [23611, 3, 9, 1.04], [3047, 3, 7, 1.93], [20969, 3, 7, 2.16], [1414, 15, 9, 0.56], [2878, 1, 7, 3.02], [114, 3, 7, 0.92], [12923, 1, 7, 0.96], [10529, 29, 7, 2.54], [95, 3, 1035, 3.11], [346, 1, 150, 2.73], [998, 2, 232, 4.15], [79, 1, 47, 2.0], [214, 3, 637, 1.87], [3980, 4, 498, 3.43], [20927, 1, 28, 2.16], [22316, 3, 312, 2.59], [83, 2, 53, 1.75], [20498, 1, 96, 4.1], [8898, 3, 274, 6.0], [9760, 29, 75, 1.62], [1070, 7, 580, 3.4], [997, 2, 232, 4.19], [1622, 1, 113, 1.18], [14017, 3, 195, 3.39], [7567, 3, 68, 4.57], [13034, 3, 577, 4.66], [22554, 10, 373, 1.77], [13260, 29, 71, 3.3], [11116, 1, 78, 1.71], [1243, 2, 102, 2.2], [12924, 1, 52, 3.1], [22317, 3, 311, 3.02], [20498, 3, 580, 4.18], [5946, 1, 121, 1.92], [996, 2, 232, 6.0], [35, 1, 110, 3.63], [5086, 1, 181, 4.29], [5813, 3, 580, 4.12], [9691, 1, 73, 4.81], [995, 2, 232, 6.0], [1413, 15, 96, 1.77], [1080, 3, 138, 1.89], [952, 4, 71, 5.45], [11085, 2, 573, 1.54], [2424, 80, 175, 4.94], [8557, 3, 195, 3.68], [3049, 3, 134, 5.77], [1703, 2, 159, 4.37], [215, 4, 39, 5.79], [20486, 3, 580, 5.44], [39, 1, 110, 2.72], [3900, 3, 45, 3.36], [4076, 3, 196, 6.0], [9081, 3, 453, 4.97], [13023, 3, 580, 4.6], [8274, 3, 299, 1.67], [8943, 3, 133, 1.6], [34, 1, 110, 2.13], [20486, 1, 96, 5.02], [6497, 1, 37, 3.59], [8104, 1, 206, 1.65], [11510, 3, 574, 3.64], [2854, 21, 1094, 2.49], [38, 1, 110, 2.92], [23611, 3, 339, 1.72], [3047, 3, 265, 2.83], [20969, 3, 580, 3.06], [1414, 15, 96, 2.47], [2878, 1, 83, 3.7], [114, 3, 242, 2.57], [12923, 1, 39, 1.64], [10529, 29, 42, 3.21]]</t>
   </si>
 </sst>
 </file>

--- a/QD_upload.xlsx
+++ b/QD_upload.xlsx
@@ -70,82 +70,82 @@
     <t>SakkarahQD</t>
   </si>
   <si>
-    <t>17/12/2025 13:05</t>
-  </si>
-  <si>
-    <t>23/12/2025 23:59</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 6, 0.73], [3, 2, 4, 1.22], [326, 2, 4, 0.29], [589, 2, 6, 0.2], [143, 2, 4, 0.58], [2049, 3, 9, 1.15], [6935, 2, 8, 1.27], [130, 1, 5, 0.6], [205, 2, 4, 0.2], [75, 2, 6, 0.87], [12721, 2, 6, 0.72], [144, 2, 4, 0.74], [145, 2, 4, 0.52], [8915, 2, 8, 0.2], [1776, 1, 4, 0.61], [593, 2, 5, 0.59], [146, 2, 4, 1.17], [151, 1, 4, 0.2], [2778, 2, 6, 0.2], [1777, 1, 4, 0.74], [20252, 2, 5, 0.2], [206, 2, 4, 0.2], [8648, 2, 4, 1.27], [990, 2, 4, 0.7], [2328, 2, 4, 0.2], [6936, 2, 6, 1.17], [5151, 2, 4, 0.47], [7886, 4, 5, 0.45], [8650, 2, 5, 1.65], [88, 10, 8, 0.44], [141, 2, 4, 0.28], [74, 1, 4, 1.53], [83, 2, 4, 0.44], [1492, 1, 5, 0.72], [7004, 1, 4, 0.2], [2054, 3, 5, 0.53], [362, 2, 4, 0.96], [2057, 3, 6, 0.47], [10825, 21, 10, 1.03], [8649, 2, 4, 1.4], [2055, 3, 5, 0.42], [345, 3, 4, 0.32], [7084, 3, 4, 2.28], [7005, 1, 4, 0.2], [307, 2, 4, 1.0], [3889, 1, 4, 0.2], [21793, 1, 5, 1.14], [410, 1, 4, 0.52], [432, 3, 6, 0.62], [7887, 4, 4, 0.35], [22247, 2, 5, 0.95], [57, 1, 4, 0.44], [11681, 2, 5, 1.79], [10149, 3, 15, 0.99], [308, 1, 4, 0.49], [7036, 1, 4, 0.68], [94, 4, 4, 0.2], [12870, 1, 4, 2.33], [5081, 2, 5, 0.44], [9827, 3, 4, 0.2], [201, 3, 5, 0.2], [167, 3, 5, 1.4], [13028, 3, 4, 0.62], [8677, 3, 6, 0.65], [1504, 2, 5, 0.52], [1124, 2, 8, 0.2], [3891, 1, 4, 0.2], [35, 1, 4, 0.83], [3893, 1, 4, 0.2], [8676, 2, 4, 0.73], [168, 3, 4, 1.23], [9760, 29, 4, 0.24], [5812, 3, 6, 0.8], [1243, 2, 4, 0.66], [6158, 2, 6, 0.51], [412, 1, 4, 1.39], [45, 2, 4, 0.64], [361, 2, 4, 0.53], [20927, 1, 4, 0.49], [335, 3, 11, 0.22], [1767, 25, 4, 0.59], [3980, 4, 4, 1.39], [346, 1, 4, 0.85], [95, 3, 14, 0.3], [9069, 1, 4, 0.42], [214, 3, 9, 0.2], [998, 2, 4, 1.22], [2049, 1, 4, 0.48], [413, 1, 5, 1.32], [3495, 3, 13, 1.31], [8674, 2, 4, 0.73], [856, 1, 4, 0.38], [34, 1, 4, 0.63], [8898, 3, 5, 0.75], [11116, 1, 5, 0.56], [346, 3, 4, 0.82], [1766, 25, 4, 0.56], [5946, 1, 4, 0.78], [1070, 7, 10, 0.46], [997, 2, 4, 0.77], [9691, 1, 4, 1.77], [20498, 1, 4, 0.23], [38, 1, 4, 0.88], [974, 3, 5, 1.13], [152, 21, 4, 0.43], [9372, 1, 5, 1.99], [14017, 3, 5, 1.04], [1091, 1, 4, 0.78], [22317, 3, 6, 0.51], [11954, 1, 5, 0.2], [20498, 3, 8, 0.57], [996, 2, 4, 1.22], [82, 2, 4, 0.46], [1080, 3, 5, 0.3], [9828, 3, 4, 0.2], [14037, 3, 4, 0.2], [39, 1, 4, 0.84], [5811, 3, 4, 2.2], [3048, 3, 4, 1.24], [972, 3, 5, 0.91], [1767, 2, 4, 0.59], [13260, 29, 4, 0.73], [24, 1, 4, 0.79], [4203, 1, 5, 0.3], [5813, 3, 5, 1.52], [10780, 10, 4, 1.3], [13034, 3, 5, 1.09], [5513, 2, 4, 1.0], [8945, 3, 5, 1.5], [952, 4, 4, 2.16], [202, 2, 4, 1.59], [3981, 3, 10, 1.42], [3900, 3, 4, 0.49], [995, 2, 4, 1.22], [6497, 1, 4, 0.47], [8672, 2, 339, 3.45], [3, 2, 142, 3.44], [326, 2, 110, 2.14], [589, 2, 172, 1.66], [143, 2, 168, 3.36], [6935, 2, 315, 5.06], [130, 1, 66, 2.8], [205, 2, 122, 2.81], [75, 2, 165, 3.91], [12721, 2, 321, 4.0], [144, 2, 180, 2.18], [145, 2, 171, 3.26], [8915, 2, 218, 1.5], [1776, 1, 122, 3.44], [593, 2, 77, 2.77], [146, 2, 171, 3.01], [151, 1, 75, 1.7], [2778, 2, 174, 3.37], [1777, 1, 122, 3.66], [20252, 2, 105, 1.86], [206, 2, 55, 2.12], [8648, 2, 248, 5.84], [2328, 2, 169, 3.6], [6936, 2, 315, 4.78], [5151, 2, 29, 1.66], [7886, 4, 132, 1.87], [8650, 2, 248, 6.0], [88, 10, 669, 2.75], [141, 2, 173, 3.92], [74, 1, 222, 5.84], [83, 2, 60, 1.77], [1492, 1, 41, 3.2], [7004, 1, 90, 1.73], [2054, 3, 532, 2.85], [362, 2, 167, 3.17], [2057, 3, 532, 3.18], [10825, 21, 710, 3.76], [8649, 2, 248, 6.0], [2055, 3, 532, 3.1], [345, 3, 337, 3.35], [7005, 1, 90, 1.72], [307, 2, 174, 2.69], [3889, 1, 138, 3.11], [21793, 1, 256, 5.01], [410, 1, 124, 1.76], [432, 3, 339, 3.45], [7887, 4, 157, 1.66], [22247, 2, 338, 3.49], [57, 1, 101, 1.76], [11681, 2, 295, 6.0], [10149, 3, 986, 3.97], [308, 1, 188, 3.55], [7036, 1, 143, 4.05], [94, 4, 133, 4.41], [12870, 1, 70, 6.0], [5081, 2, 213, 3.57], [9827, 3, 98, 3.03], [201, 3, 337, 3.35], [167, 3, 255, 3.97], [13028, 3, 163, 4.2], [8677, 3, 330, 3.57], [1504, 2, 228, 3.71], [1124, 2, 209, 3.48], [3891, 1, 138, 3.99], [35, 1, 125, 3.56]]</t>
-  </si>
-  <si>
-    <t>[[305, 2, 4, 0.45], [6935, 2, 6, 1.69], [589, 2, 5, 0.91], [2778, 2, 5, 0.2], [144, 2, 4, 0.29], [8915, 2, 5, 0.2], [130, 1, 4, 0.36], [2328, 2, 4, 0.2], [6936, 2, 5, 1.66], [205, 2, 4, 0.2], [8648, 2, 5, 1.15], [2775, 2, 4, 1.33], [593, 2, 6, 0.4], [145, 2, 4, 0.25], [146, 2, 5, 0.32], [5493, 2, 4, 0.2], [11681, 2, 4, 2.0], [7036, 1, 4, 1.53], [88, 10, 14, 0.52], [2776, 2, 4, 1.06], [141, 2, 5, 0.39], [151, 1, 4, 0.51], [1446, 2, 4, 0.53], [206, 2, 4, 0.2], [990, 2, 4, 0.39], [9760, 29, 4, 0.2], [248, 1, 4, 0.53], [5491, 2, 4, 0.4], [1007, 2, 4, 0.38], [8672, 2, 4, 2.86], [142, 2, 4, 0.92], [362, 2, 4, 0.52], [2912, 1, 4, 0.66], [10993, 2, 5, 0.35], [3893, 1, 4, 0.2], [12870, 1, 5, 1.68], [5165, 1, 4, 1.11], [7886, 4, 5, 0.44], [2055, 3, 5, 0.55], [417, 2, 4, 0.92], [9372, 1, 4, 1.17], [1622, 1, 5, 0.2], [3889, 1, 4, 0.2], [523, 2, 4, 0.55], [2054, 3, 5, 0.19], [7573, 1, 10, 2.21], [21793, 1, 5, 0.61], [10, 2, 5, 0.36], [7885, 4, 4, 0.49], [3891, 1, 4, 0.2], [10149, 3, 17, 1.21], [75, 2, 5, 1.25], [20927, 1, 4, 1.26], [61, 3, 4, 1.23], [5208, 3, 5, 0.19], [997, 2, 5, 1.01], [3, 2, 5, 0.62], [9491, 21, 17, 0.22], [12721, 2, 6, 1.46], [5165, 2, 5, 1.11], [35, 1, 5, 1.54], [83, 2, 4, 0.45], [998, 2, 4, 0.56], [22247, 2, 4, 1.14], [33, 1, 4, 1.18], [996, 2, 4, 0.35], [346, 3, 4, 1.66], [7887, 4, 4, 0.97], [972, 3, 5, 0.75], [5076, 1, 4, 0.96], [2805, 137, 4, 1.17], [229, 1, 4, 1.55], [6158, 2, 5, 0.2], [2424, 80, 4, 1.11], [34, 1, 4, 1.32], [13028, 3, 5, 1.36], [2912, 2, 7, 0.99], [13928, 1, 4, 1.33], [38, 1, 4, 1.38], [8898, 3, 4, 4.0], [346, 1, 4, 1.67], [76, 2, 5, 1.1], [12212, 29, 5, 0.2], [8104, 1, 4, 0.93], [2336, 3, 5, 0.5], [9690, 1, 4, 0.62], [5209, 3, 6, 0.46], [39, 1, 4, 1.35], [3495, 3, 11, 1.25], [11952, 1, 4, 0.66], [7567, 3, 4, 1.58], [2424, 29, 4, 0.66], [5946, 1, 4, 0.28], [11490, 1, 4, 0.46], [24257, 1, 4, 0.52], [9691, 1, 4, 0.9], [3048, 3, 4, 0.92], [11770, 1, 4, 1.08], [411, 2, 4, 0.85], [21798, 1, 4, 0.59], [1703, 2, 4, 1.33], [13928, 2, 4, 1.33], [632, 11, 13, 0.48], [11953, 1, 4, 0.2], [74, 1, 5, 2.78], [161, 3, 5, 1.48], [10407, 10, 6, 1.41], [22316, 3, 5, 0.35], [13023, 3, 6, 0.55], [1523, 1, 4, 0.4], [21269, 3, 4, 0.98], [10410, 10, 10, 1.92], [192, 3, 9, 1.05], [12764, 2, 6, 0.48], [214, 3, 11, 0.2], [2331, 1, 4, 0.79], [972, 1, 4, 1.01], [3430, 15, 4, 1.45], [5164, 1, 4, 1.0], [13893, 2, 4, 1.0], [1274, 1, 5, 0.3], [4076, 3, 4, 1.42], [6097, 80, 4, 1.26], [6097, 29, 4, 0.69], [11116, 1, 4, 0.56], [3576, 29, 4, 1.27], [10408, 10, 5, 1.58], [1080, 3, 4, 1.41], [1243, 2, 5, 0.88], [3047, 3, 4, 1.39], [10780, 10, 4, 1.87], [2438, 2, 6, 1.88], [8674, 2, 4, 1.9], [11813, 1, 4, 0.73], [3334, 5, 4, 1.2], [2436, 4, 5, 0.2], [305, 2, 161, 3.46], [6935, 2, 311, 6.0], [589, 2, 159, 2.45], [2778, 2, 171, 3.56], [144, 2, 176, 1.9], [8915, 2, 209, 2.94], [130, 1, 69, 1.55], [2328, 2, 165, 3.78], [6936, 2, 311, 5.9], [205, 2, 119, 2.56], [8648, 2, 243, 5.71], [2775, 2, 180, 3.42], [593, 2, 53, 3.44], [145, 2, 176, 1.82], [146, 2, 176, 2.21], [5493, 2, 119, 1.82], [11681, 2, 302, 5.82], [7036, 1, 140, 5.66], [88, 10, 652, 2.96], [2776, 2, 180, 2.9], [141, 2, 170, 3.36], [151, 1, 23, 1.62], [1446, 2, 166, 2.59], [206, 2, 101, 2.58], [990, 2, 60, 1.61], [9760, 29, 78, 3.37], [248, 1, 63, 1.88], [5491, 2, 126, 1.63], [1007, 2, 312, 1.59], [8672, 2, 323, 6.0], [142, 2, 179, 2.63], [362, 2, 154, 3.59], [2912, 1, 52, 2.59], [10993, 2, 58, 2.11], [3893, 1, 135, 3.35], [12870, 1, 152, 5.83], [5165, 1, 52, 3.0], [7886, 4, 157, 1.89], [2055, 3, 521, 2.57], [417, 2, 179, 2.63], [9372, 1, 264, 4.75], [1622, 1, 118, 1.67], [3889, 1, 135, 3.86], [523, 2, 179, 2.04], [2054, 3, 494, 3.32], [7573, 1, 378, 5.97], [21793, 1, 261, 2.56], [10, 2, 114, 3.02], [7885, 4, 29, 1.67], [3891, 1, 135, 3.4], [10149, 3, 947, 4.76], [75, 2, 160, 4.5], [61, 3, 239, 3.23], [5208, 3, 619, 2.12], [997, 2, 262, 4.96], [3, 2, 131, 3.96], [9491, 21, 2386, 3.56], [12721, 2, 311, 4.94], [5165, 2, 416, 2.81], [83, 2, 25, 2.2], [998, 2, 262, 4.14], [22247, 2, 311, 3.38], [33, 1, 39, 3.81], [996, 2, 262, 5.57]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 5, 1.09], [130, 1, 4, 0.35], [11685, 2, 4, 1.87], [8648, 2, 4, 0.71], [144, 2, 4, 1.3], [589, 2, 5, 0.2], [2327, 2, 5, 0.29], [11681, 2, 5, 1.37], [205, 2, 4, 0.37], [593, 2, 6, 0.27], [305, 2, 4, 0.51], [8915, 2, 5, 0.53], [141, 2, 4, 0.53], [8650, 2, 4, 0.77], [151, 1, 4, 0.4], [6936, 2, 6, 1.85], [2778, 2, 6, 0.2], [206, 2, 4, 0.46], [146, 2, 5, 0.82], [88, 10, 12, 0.19], [615, 2, 4, 0.37], [7036, 1, 4, 1.48], [1446, 2, 4, 0.9], [990, 2, 4, 0.36], [362, 2, 4, 0.5], [8853, 2, 5, 1.45], [417, 2, 4, 0.4], [248, 1, 4, 0.39], [2055, 3, 6, 1.98], [523, 2, 5, 0.53], [3893, 1, 4, 0.43], [12870, 1, 4, 1.42], [142, 2, 4, 0.4], [12350, 1, 4, 1.24], [2057, 3, 5, 1.78], [3889, 1, 5, 0.35], [7084, 3, 5, 1.07], [20927, 1, 4, 0.86], [7005, 1, 4, 0.67], [997, 2, 6, 0.78], [12349, 1, 4, 2.59], [21793, 1, 4, 1.34], [3891, 1, 5, 0.28], [61, 3, 4, 0.98], [7885, 4, 5, 0.52], [5165, 1, 4, 0.65], [6158, 2, 7, 0.2], [8672, 2, 5, 0.73], [5165, 2, 5, 0.65], [9491, 21, 14, 0.3], [2912, 1, 4, 0.87], [98, 11, 10, 0.68], [972, 3, 4, 1.77], [411, 2, 4, 0.9], [9372, 1, 4, 0.97], [10388, 2, 4, 0.6], [214, 3, 11, 0.2], [33, 1, 4, 2.08], [410, 1, 4, 0.8], [7886, 4, 5, 0.24], [13928, 1, 4, 1.1], [7567, 3, 4, 0.96], [9081, 3, 10, 0.8], [3981, 3, 13, 1.15], [22316, 3, 5, 0.51], [83, 2, 4, 0.42], [22247, 2, 4, 1.1], [336, 15, 4, 0.92], [308, 1, 4, 1.32], [2912, 2, 6, 2.03], [10631, 2, 4, 0.42], [161, 3, 5, 1.77], [229, 1, 4, 1.32], [5946, 1, 4, 0.38], [11953, 1, 4, 0.55], [10780, 10, 4, 1.74], [22317, 3, 6, 0.51], [6497, 1, 4, 0.22], [345, 3, 4, 0.76], [12271, 2, 4, 0.47], [3478, 2, 4, 1.0], [11767, 1, 4, 0.2], [10407, 10, 7, 1.36], [10410, 10, 6, 1.94], [9082, 3, 18, 0.83], [37, 1, 4, 1.16], [972, 1, 4, 0.5], [6097, 80, 4, 1.28], [39, 1, 4, 0.89], [8104, 1, 4, 0.38], [74, 1, 4, 2.03], [1413, 15, 4, 0.36], [34, 1, 4, 0.93], [82, 2, 4, 0.66], [7704, 2, 4, 1.2], [3048, 3, 4, 0.46], [24257, 1, 5, 1.38], [2331, 1, 4, 0.97], [192, 3, 10, 0.72], [335, 3, 9, 1.1], [152, 21, 4, 0.34], [38, 1, 4, 0.66], [9971, 2, 4, 0.72], [12338, 29, 4, 0.2], [9, 1, 4, 0.45], [4253, 1, 4, 0.59], [1523, 1, 4, 0.44], [45, 2, 5, 2.7], [12721, 2, 4, 0.97], [11510, 3, 5, 0.5], [6097, 29, 4, 1.28], [10936, 2, 4, 0.45], [8673, 2, 4, 2.14], [2805, 137, 4, 0.58], [10093, 3, 9, 0.92], [1080, 3, 4, 0.37], [7007, 1, 4, 1.21], [12764, 2, 5, 0.43], [3047, 3, 4, 2.46], [12212, 29, 4, 0.49], [7705, 2, 4, 1.2], [1895, 3, 4, 1.83], [8659, 1, 4, 0.91], [7706, 2, 4, 1.2], [9965, 2, 4, 2.42], [6496, 1, 4, 0.46], [8676, 2, 4, 0.49], [11812, 1, 4, 0.47], [201, 3, 4, 1.36], [2424, 80, 4, 1.31], [8635, 3, 4, 0.98], [4203, 1, 4, 0.54], [1703, 2, 4, 0.83], [3475, 2, 4, 1.08], [2438, 2, 5, 0.53], [6935, 2, 291, 5.01], [130, 1, 64, 1.48], [11685, 2, 275, 5.8], [8648, 2, 228, 3.76], [144, 2, 164, 3.31], [589, 2, 154, 3.05], [2327, 2, 154, 3.18], [11681, 2, 275, 5.79], [205, 2, 118, 1.55], [593, 2, 232, 3.21], [305, 2, 151, 3.38], [8915, 2, 206, 1.74], [141, 2, 158, 4.03], [8650, 2, 228, 3.3], [151, 1, 48, 1.53], [6936, 2, 291, 6.0], [2778, 2, 159, 3.51], [206, 2, 117, 2.38], [146, 2, 155, 4.01], [88, 10, 582, 3.29], [615, 2, 118, 2.34], [7036, 1, 131, 4.72], [1446, 2, 163, 2.54], [990, 2, 57, 1.5], [362, 2, 144, 3.36], [8853, 2, 291, 4.82], [417, 2, 167, 1.74], [248, 1, 59, 1.56], [2055, 3, 467, 5.86], [523, 2, 158, 3.5], [3893, 1, 135, 1.64], [12870, 1, 140, 5.64], [142, 2, 167, 1.74], [12350, 1, 658, 3.19], [2057, 3, 467, 5.97], [3889, 1, 128, 2.56], [7084, 3, 133, 3.88], [20927, 1, 80, 2.6], [7005, 1, 85, 2.1], [997, 2, 244, 3.44], [12349, 1, 658, 5.8], [21793, 1, 210, 3.39], [3891, 1, 128, 2.3], [61, 3, 211, 3.42], [7885, 4, 34, 1.75], [5165, 1, 51, 2.95], [6158, 2, 266, 3.69], [8672, 2, 294, 4.83], [5165, 2, 409, 2.97], [9491, 21, 2274, 2.79], [2912, 1, 52, 2.48], [98, 11, 894, 2.03], [411, 2, 111, 2.54], [9372, 1, 247, 5.04], [10388, 2, 237, 1.97], [214, 3, 673, 1.74], [410, 1, 37, 3.17], [13928, 1, 50, 2.99], [7567, 3, 71, 3.74], [9081, 3, 520, 2.21], [3981, 3, 1651, 4.11], [22316, 3, 323, 2.92], [83, 2, 51, 2.21], [22247, 2, 308, 2.92], [336, 15, 110, 2.58]]</t>
-  </si>
-  <si>
-    <t>[[326, 2, 5, 0.22], [6935, 2, 9, 0.72], [362, 2, 5, 0.95], [2049, 3, 10, 0.2], [589, 2, 6, 0.2], [141, 2, 5, 0.54], [75, 2, 5, 0.74], [1776, 1, 4, 0.58], [8672, 2, 6, 0.72], [20252, 2, 4, 0.2], [205, 2, 4, 0.46], [7886, 4, 4, 0.41], [2778, 2, 5, 0.2], [1777, 1, 4, 0.93], [305, 2, 4, 0.23], [11681, 2, 5, 2.58], [593, 2, 7, 0.2], [8648, 2, 5, 0.77], [6936, 2, 5, 1.27], [2328, 2, 5, 0.2], [1007, 2, 5, 0.37], [88, 10, 12, 0.33], [83, 2, 4, 0.5], [5151, 2, 4, 0.9], [8650, 2, 5, 1.15], [412, 1, 4, 0.91], [345, 3, 4, 0.57], [2991, 3, 4, 2.17], [22247, 2, 4, 0.97], [361, 2, 4, 0.49], [144, 2, 4, 0.5], [57, 1, 6, 0.2], [201, 3, 5, 0.57], [21793, 1, 4, 1.03], [10149, 3, 15, 1.32], [45, 2, 5, 1.12], [3478, 2, 4, 0.45], [146, 2, 5, 0.56], [2054, 3, 5, 1.34], [7004, 1, 5, 0.47], [12721, 2, 6, 0.97], [167, 3, 5, 1.09], [2057, 3, 5, 1.62], [413, 1, 4, 0.73], [10825, 21, 8, 1.17], [6158, 2, 5, 0.87], [74, 1, 4, 0.84], [168, 3, 6, 0.74], [308, 1, 4, 0.72], [346, 1, 4, 0.2], [2055, 3, 4, 0.8], [10, 2, 4, 0.42], [7036, 1, 4, 1.96], [13028, 3, 4, 0.5], [3495, 3, 15, 0.92], [335, 3, 13, 0.4], [432, 3, 4, 0.39], [5081, 2, 5, 0.2], [7887, 4, 5, 0.4], [12870, 1, 4, 2.58], [214, 3, 9, 0.42], [8649, 2, 4, 1.4], [79, 1, 4, 0.2], [410, 1, 4, 0.8], [1492, 1, 4, 0.2], [3889, 1, 5, 0.2], [145, 2, 4, 0.2], [9827, 3, 4, 0.2], [3893, 1, 5, 0.2], [1504, 2, 4, 0.2], [5208, 3, 6, 0.19], [95, 3, 13, 0.86], [13260, 29, 4, 0.85], [5812, 3, 5, 1.22], [23, 1, 4, 1.51], [94, 4, 4, 0.81], [411, 2, 4, 0.31], [7005, 1, 4, 0.49], [3891, 1, 4, 0.2], [998, 2, 4, 0.69], [25, 1, 4, 1.51], [21269, 3, 4, 3.75], [7567, 3, 4, 1.62], [10574, 3, 5, 0.43], [5086, 1, 6, 1.11], [1243, 2, 4, 1.13], [9069, 1, 4, 1.62], [2878, 1, 5, 1.57], [997, 2, 4, 1.37], [11954, 1, 5, 0.48], [9691, 1, 4, 1.9], [856, 1, 4, 0.23], [11914, 1, 5, 0.2], [20927, 1, 4, 0.61], [1703, 2, 4, 1.38], [5660, 2, 5, 2.37], [5584, 3, 5, 0.44], [952, 4, 4, 2.64], [5209, 3, 5, 0.19], [9081, 3, 10, 1.03], [8898, 3, 5, 2.67], [996, 2, 4, 1.37], [1070, 7, 8, 0.64], [346, 3, 5, 0.64], [1622, 1, 5, 0.35], [8676, 2, 4, 0.97], [12661, 1, 4, 2.35], [23961, 3, 4, 2.68], [5513, 2, 4, 0.52], [1091, 1, 4, 0.2], [22317, 3, 6, 0.51], [8274, 3, 5, 1.09], [13034, 3, 6, 1.01], [11811, 1, 5, 1.0], [24, 1, 5, 0.95], [1519, 3, 14, 0.22], [27, 1, 4, 1.51], [8674, 2, 6, 0.97], [6097, 29, 4, 0.2], [9760, 29, 4, 0.2], [4203, 1, 5, 0.53], [6097, 80, 4, 0.41], [10529, 29, 4, 1.44], [82, 2, 4, 0.35], [1413, 15, 4, 0.37], [995, 2, 4, 0.98], [9082, 3, 18, 0.92], [20498, 3, 6, 1.76], [66, 1, 4, 0.42], [2104, 3, 6, 1.63], [6098, 80, 4, 1.15], [9372, 1, 4, 0.42], [6098, 29, 4, 0.35], [34, 1, 4, 0.47], [326, 2, 96, 1.71], [6935, 2, 278, 4.7], [362, 2, 139, 3.93], [2049, 3, 539, 2.4], [589, 2, 152, 1.4], [141, 2, 152, 3.14], [75, 2, 145, 4.02], [1776, 1, 107, 3.22], [8672, 2, 281, 3.06], [20252, 2, 92, 1.75], [205, 2, 113, 1.61], [7886, 4, 141, 2.29], [2778, 2, 153, 3.21], [1777, 1, 107, 3.88], [305, 2, 145, 2.78], [11681, 2, 260, 6.0], [593, 2, 119, 2.98], [8648, 2, 218, 5.36], [6936, 2, 278, 4.83], [2328, 2, 148, 3.09], [1007, 2, 281, 1.71], [88, 10, 557, 4.5], [83, 2, 53, 1.86], [5151, 2, 26, 2.64], [8650, 2, 218, 5.4], [412, 1, 82, 3.83], [345, 3, 315, 1.78], [2991, 3, 156, 5.79], [22247, 2, 296, 3.08], [361, 2, 152, 1.84], [144, 2, 159, 2.12], [57, 1, 84, 2.78], [201, 3, 315, 1.68], [21793, 1, 232, 5.78], [10149, 3, 853, 4.91], [45, 2, 108, 4.8], [3478, 2, 74, 1.77], [146, 2, 151, 3.76], [2054, 3, 488, 3.9], [7004, 1, 78, 2.43], [12721, 2, 296, 2.46], [167, 3, 224, 3.97], [2057, 3, 463, 4.1], [413, 1, 90, 2.74], [10825, 21, 675, 2.78], [6158, 2, 270, 3.55], [74, 1, 198, 4.67], [168, 3, 399, 3.53], [308, 1, 175, 3.12], [346, 1, 150, 2.96], [2055, 3, 488, 2.59], [10, 2, 55, 2.7], [7036, 1, 125, 5.53], [13028, 3, 145, 3.08], [3495, 3, 950, 3.74], [432, 3, 297, 2.51], [5081, 2, 189, 3.15], [7887, 4, 138, 1.67], [12870, 1, 135, 6.0], [214, 3, 637, 1.67], [8649, 2, 218, 5.12], [79, 1, 47, 2.0], [410, 1, 102, 2.89], [1492, 1, 39, 1.88], [3889, 1, 121, 3.86], [145, 2, 151, 1.73]]</t>
-  </si>
-  <si>
-    <t>[[589, 2, 6, 0.2], [88, 10, 12, 0.19], [2327, 2, 4, 0.52], [8915, 2, 5, 0.21], [6935, 2, 6, 1.69], [2778, 2, 5, 0.2], [305, 2, 5, 0.45], [2328, 2, 4, 0.26], [130, 1, 4, 0.36], [5493, 2, 5, 0.2], [616, 2, 4, 0.3], [326, 2, 5, 0.97], [6936, 2, 5, 1.66], [8648, 2, 4, 1.7], [8650, 2, 5, 2.46], [1446, 2, 4, 0.2], [7004, 1, 4, 0.99], [205, 2, 4, 0.44], [2049, 3, 5, 0.47], [144, 2, 5, 1.04], [10, 2, 5, 0.42], [151, 1, 4, 0.51], [990, 2, 4, 0.39], [7036, 1, 4, 1.2], [3893, 1, 5, 0.2], [146, 2, 5, 1.32], [7885, 4, 4, 0.49], [141, 2, 4, 0.92], [3891, 1, 4, 0.2], [206, 2, 4, 0.46], [75, 2, 5, 0.99], [2055, 3, 4, 0.99], [362, 2, 4, 0.52], [10993, 2, 4, 0.45], [21793, 1, 4, 0.86], [5208, 3, 6, 0.19], [3889, 1, 6, 0.2], [7084, 3, 4, 1.57], [11234, 2, 4, 1.4], [7005, 1, 4, 0.68], [3980, 4, 6, 1.21], [12870, 1, 4, 1.93], [2912, 1, 4, 0.77], [145, 2, 4, 1.5], [5165, 1, 4, 0.65], [10149, 3, 13, 1.47], [8672, 2, 4, 2.86], [9760, 29, 4, 0.2], [998, 2, 4, 0.31], [20927, 1, 4, 1.68], [997, 2, 4, 1.02], [2436, 4, 4, 0.43], [417, 2, 4, 0.92], [2424, 80, 5, 0.86], [7887, 4, 4, 0.97], [6158, 2, 4, 0.2], [3, 2, 4, 0.37], [5076, 1, 5, 0.56], [632, 11, 13, 0.48], [229, 1, 5, 0.91], [972, 3, 5, 0.51], [3495, 3, 13, 1.25], [74, 1, 4, 1.22], [9491, 21, 10, 1.33], [523, 2, 4, 0.55], [11770, 1, 4, 1.08], [346, 3, 5, 1.66], [11953, 1, 4, 0.45], [5165, 2, 5, 0.65], [7573, 1, 9, 2.46], [12721, 2, 4, 0.6], [996, 2, 4, 1.02], [22316, 3, 5, 0.35], [2423, 80, 6, 1.72], [11772, 1, 4, 1.08], [9372, 1, 4, 1.17], [3981, 3, 11, 0.51], [6497, 1, 4, 0.49], [24257, 1, 4, 0.48], [2912, 2, 7, 2.03], [11952, 1, 4, 0.66], [2438, 2, 5, 1.88], [12229, 2, 4, 0.36], [823, 1, 4, 0.65], [361, 2, 4, 0.92], [2424, 29, 4, 0.37], [8898, 3, 4, 4.0], [3975, 4, 5, 1.26], [346, 1, 4, 1.67], [1622, 1, 4, 0.49], [6496, 1, 4, 1.2], [192, 3, 9, 1.05], [10407, 10, 8, 1.18], [3900, 3, 4, 0.71], [5209, 3, 6, 0.19], [2805, 137, 4, 1.0], [9081, 3, 7, 0.66], [5946, 1, 4, 0.28], [33, 1, 4, 0.47], [11812, 1, 4, 0.47], [335, 3, 9, 0.62], [1703, 2, 4, 0.5], [7567, 3, 4, 1.58], [12764, 2, 5, 0.43], [10388, 2, 4, 0.61], [11490, 1, 4, 0.23], [37, 1, 4, 0.47], [8676, 2, 4, 2.86], [6097, 80, 4, 0.66], [972, 1, 4, 1.01], [202, 2, 4, 0.88], [220, 4, 4, 1.31], [1519, 3, 10, 0.39], [22247, 2, 4, 1.3], [23611, 3, 5, 0.5], [161, 3, 5, 1.48], [35, 1, 4, 0.47], [38, 1, 4, 0.47], [13893, 2, 4, 1.0], [2104, 3, 9, 1.26], [11814, 1, 4, 0.23], [95, 3, 12, 0.42], [83, 2, 4, 0.46], [4232, 80, 4, 1.82], [1895, 3, 4, 1.65], [11813, 1, 4, 0.73], [11116, 1, 4, 0.56], [12212, 29, 4, 0.27], [8635, 3, 4, 0.87], [788, 2, 5, 0.2], [8104, 1, 4, 0.93], [12979, 25, 7, 0.72], [76, 2, 4, 0.51], [1309, 1, 4, 0.46], [13928, 1, 4, 1.33], [10386, 2, 4, 0.77], [589, 2, 168, 2.97], [88, 10, 619, 3.42], [2327, 2, 165, 3.59], [8915, 2, 209, 2.94], [6935, 2, 311, 6.0], [2778, 2, 171, 3.56], [305, 2, 161, 3.46], [2328, 2, 165, 4.03], [130, 1, 69, 1.55], [5493, 2, 119, 1.82], [616, 2, 120, 2.15], [326, 2, 21, 3.65], [6936, 2, 311, 5.9], [8648, 2, 256, 4.13], [8650, 2, 243, 6.0], [1446, 2, 166, 3.73], [205, 2, 126, 1.71], [2049, 3, 126, 1.66], [144, 2, 167, 3.93], [151, 1, 23, 1.62], [990, 2, 60, 1.61], [7036, 1, 140, 5.66], [3893, 1, 135, 3.35], [146, 2, 167, 4.04], [7885, 4, 116, 1.77], [141, 2, 179, 2.63], [3891, 1, 135, 3.4], [206, 2, 125, 1.88], [75, 2, 160, 4.5], [2055, 3, 549, 2.77], [362, 2, 97, 3.74], [10993, 2, 62, 1.73], [21793, 1, 261, 2.52], [5208, 3, 619, 2.12], [3889, 1, 135, 3.86], [7084, 3, 141, 4.19], [11234, 2, 212, 3.56], [7005, 1, 92, 2.17], [3980, 4, 528, 4.52], [12870, 1, 152, 5.83], [2912, 1, 52, 3.74], [145, 2, 53, 3.79], [5165, 1, 55, 2.93], [10149, 3, 947, 4.76], [8672, 2, 323, 6.0], [9760, 29, 78, 3.4], [998, 2, 262, 4.14], [997, 2, 262, 3.36], [2436, 4, 126, 2.44], [417, 2, 179, 2.63], [2424, 80, 186, 3.86], [6158, 2, 285, 2.64], [3, 2, 131, 3.96], [5076, 1, 142, 3.04], [632, 11, 949, 1.71], [229, 1, 89, 4.03], [972, 3, 650, 3.9], [3495, 3, 1056, 4.26], [74, 1, 231, 3.2], [9491, 21, 2512, 3.93], [523, 2, 179, 2.04], [11770, 1, 230, 3.85], [346, 3, 644, 3.44], [11953, 1, 218, 1.96]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 6, 1.34], [305, 2, 4, 0.51], [615, 2, 4, 0.2], [2778, 2, 6, 0.2], [6936, 2, 5, 1.35], [5493, 2, 4, 0.2], [205, 2, 6, 0.2], [130, 1, 4, 0.35], [616, 2, 5, 0.22], [88, 10, 11, 0.19], [144, 2, 5, 0.47], [8648, 2, 5, 0.71], [2049, 3, 10, 0.2], [11681, 2, 5, 1.86], [8915, 2, 5, 0.53], [589, 2, 5, 0.2], [326, 2, 5, 0.7], [7036, 1, 4, 1.48], [8650, 2, 6, 0.96], [2327, 2, 5, 0.29], [593, 2, 6, 0.27], [3893, 1, 4, 0.43], [141, 2, 6, 0.53], [206, 2, 4, 0.65], [7004, 1, 4, 0.94], [151, 1, 4, 0.4], [3891, 1, 4, 0.28], [248, 1, 4, 0.39], [143, 2, 5, 1.53], [3980, 4, 6, 1.19], [146, 2, 5, 1.32], [2050, 3, 6, 1.69], [990, 2, 4, 0.36], [2055, 3, 5, 1.74], [7885, 4, 5, 0.2], [7886, 4, 4, 0.4], [2054, 3, 6, 1.86], [12870, 1, 5, 1.4], [362, 2, 4, 0.82], [8672, 2, 5, 0.73], [10993, 2, 4, 0.63], [3975, 4, 4, 1.39], [2057, 3, 6, 1.78], [5165, 1, 4, 0.65], [21793, 1, 4, 1.09], [13028, 3, 4, 0.62], [7084, 3, 4, 1.07], [145, 2, 4, 1.3], [2991, 3, 4, 0.88], [523, 2, 4, 1.03], [75, 2, 4, 0.46], [7005, 1, 4, 0.72], [3982, 3, 14, 1.18], [3981, 3, 13, 1.42], [33, 1, 5, 1.58], [142, 2, 6, 0.52], [20927, 1, 4, 1.17], [2912, 1, 4, 1.16], [6158, 2, 6, 0.2], [7887, 4, 5, 1.2], [5165, 2, 5, 0.92], [82, 2, 4, 0.66], [417, 2, 4, 0.4], [35, 1, 5, 1.58], [22316, 3, 6, 0.51], [214, 3, 11, 0.2], [11953, 1, 6, 0.2], [6497, 1, 4, 0.22], [61, 3, 4, 1.41], [229, 1, 4, 1.5], [192, 3, 11, 0.77], [11772, 1, 4, 1.28], [950, 1, 4, 0.38], [996, 2, 6, 1.47], [7567, 3, 4, 0.71], [11769, 1, 4, 0.96], [5946, 1, 4, 0.28], [346, 3, 5, 1.27], [6496, 1, 4, 0.46], [4176, 4, 5, 1.31], [972, 3, 5, 1.77], [39, 1, 4, 0.51], [74, 1, 5, 2.03], [411, 2, 4, 0.9], [7573, 1, 5, 0.97], [8677, 3, 4, 1.15], [12721, 2, 4, 0.97], [37, 1, 4, 0.66], [4253, 1, 4, 0.48], [2436, 4, 5, 0.44], [22317, 3, 5, 0.26], [2912, 2, 5, 0.88], [2104, 3, 6, 1.46], [1413, 15, 4, 0.2], [12212, 29, 4, 0.24], [336, 15, 5, 0.92], [1277, 1, 4, 0.65], [201, 3, 5, 0.51], [345, 3, 4, 1.01], [11085, 2, 6, 1.53], [21269, 3, 4, 3.24], [13023, 3, 5, 1.26], [12271, 2, 5, 0.84], [823, 1, 4, 0.56], [3, 2, 5, 0.71], [8673, 2, 4, 2.14], [22247, 2, 5, 1.39], [38, 1, 4, 0.66], [8676, 2, 4, 0.98], [10631, 2, 4, 1.48], [9, 1, 4, 0.2], [2805, 137, 4, 0.58], [10408, 10, 5, 1.64], [3577, 25, 4, 0.53], [3048, 3, 5, 1.17], [10388, 2, 4, 0.6], [1414, 15, 4, 0.2], [10936, 2, 4, 0.45], [13928, 1, 4, 1.1], [9081, 3, 10, 0.8], [11812, 1, 4, 0.47], [346, 1, 5, 1.27], [20498, 3, 5, 0.4], [9491, 21, 10, 0.6], [13244, 1, 4, 0.45], [4076, 3, 5, 1.19], [161, 3, 6, 1.5], [11814, 1, 4, 0.48], [9372, 1, 4, 0.97], [10407, 10, 6, 1.94], [12764, 2, 8, 0.33], [491, 10, 5, 1.64], [1523, 1, 4, 0.44], [972, 1, 4, 0.75], [11089, 1, 4, 1.73], [3576, 25, 4, 0.75], [6935, 2, 291, 5.26], [305, 2, 151, 3.38], [615, 2, 118, 1.48], [2778, 2, 159, 3.51], [6936, 2, 291, 5.64], [5493, 2, 112, 2.04], [205, 2, 106, 2.53], [130, 1, 64, 1.48], [616, 2, 112, 1.95], [88, 10, 582, 3.29], [144, 2, 155, 3.9], [8648, 2, 228, 5.15], [2049, 3, 555, 3.08], [11681, 2, 275, 5.79], [8915, 2, 206, 1.74], [589, 2, 154, 3.05], [326, 2, 95, 2.99], [7036, 1, 131, 4.72], [8650, 2, 228, 4.92], [2327, 2, 154, 3.43], [593, 2, 232, 3.21], [3893, 1, 135, 1.64], [141, 2, 158, 4.03], [206, 2, 111, 2.11], [7004, 1, 80, 2.62], [151, 1, 48, 1.53], [3891, 1, 128, 2.3], [248, 1, 59, 1.56], [143, 2, 153, 3.39], [3980, 4, 492, 4.82], [146, 2, 155, 4.01], [2050, 3, 467, 5.77], [990, 2, 57, 1.5], [2055, 3, 467, 5.86], [2054, 3, 467, 6.0], [12870, 1, 140, 6.0], [362, 2, 152, 2.39], [8672, 2, 294, 4.83], [10993, 2, 55, 2.37], [3975, 4, 518, 3.58], [2057, 3, 467, 5.97], [5165, 1, 51, 2.95], [21793, 1, 210, 3.22], [13028, 3, 159, 2.06], [7084, 3, 133, 3.88], [145, 2, 155, 3.79], [2991, 3, 171, 3.51], [523, 2, 158, 3.5], [75, 2, 159, 1.7], [7005, 1, 80, 2.2], [3982, 3, 809, 4.78], [3981, 3, 1651, 4.49], [33, 1, 53, 4.09], [142, 2, 158, 3.39], [2912, 1, 49, 3.04], [6158, 2, 266, 3.69], [5165, 2, 388, 2.41], [82, 2, 61, 2.08], [417, 2, 167, 1.74], [35, 1, 40, 3.93], [22316, 3, 323, 2.92], [214, 3, 673, 2.12], [11953, 1, 206, 2.84], [6497, 1, 38, 1.95]]</t>
-  </si>
-  <si>
-    <t>[[141, 2, 5, 0.2], [362, 2, 4, 0.57], [8650, 2, 4, 1.21], [5491, 2, 4, 0.2], [361, 2, 4, 0.4], [5493, 2, 5, 0.2], [589, 2, 5, 0.2], [8672, 2, 7, 0.66], [11685, 2, 4, 0.42], [417, 2, 4, 0.37], [6935, 2, 11, 1.06], [205, 2, 4, 0.2], [11681, 2, 5, 2.04], [11838, 2, 5, 0.2], [12721, 2, 5, 0.48], [248, 1, 4, 0.51], [11837, 2, 4, 0.58], [142, 2, 4, 0.38], [6936, 2, 5, 1.25], [2778, 2, 6, 0.2], [1446, 2, 4, 0.2], [8676, 2, 4, 0.73], [615, 2, 4, 0.74], [21793, 1, 4, 1.01], [305, 2, 5, 0.98], [593, 2, 6, 0.2], [22247, 2, 4, 1.0], [11835, 2, 4, 0.48], [616, 2, 5, 0.23], [411, 2, 4, 0.2], [990, 2, 4, 0.38], [8675, 2, 6, 0.98], [10574, 3, 6, 1.5], [145, 2, 4, 1.17], [1429, 2, 4, 0.39], [6158, 2, 6, 0.89], [10149, 3, 13, 0.75], [3495, 3, 16, 1.03], [2050, 3, 6, 0.34], [146, 2, 5, 0.49], [88, 10, 11, 0.95], [2054, 3, 6, 0.51], [75, 2, 4, 1.68], [10993, 2, 4, 0.4], [7885, 4, 5, 0.69], [144, 2, 4, 1.17], [7705, 2, 5, 0.9], [2424, 29, 4, 1.98], [346, 3, 6, 1.03], [2423, 80, 4, 1.56], [2859, 15, 4, 0.35], [7704, 2, 5, 0.9], [61, 3, 4, 0.36], [2423, 29, 4, 1.53], [9126, 1, 4, 1.13], [335, 3, 10, 0.49], [5165, 1, 4, 0.65], [2424, 80, 4, 1.98], [13028, 3, 4, 0.37], [201, 3, 5, 0.76], [346, 1, 4, 0.88], [214, 3, 9, 1.24], [60, 3, 5, 1.93], [1519, 3, 12, 0.22], [13023, 3, 5, 1.51], [308, 1, 5, 1.49], [1414, 15, 4, 0.42], [13034, 3, 5, 1.13], [2703, 3, 4, 0.96], [345, 3, 4, 0.49], [6494, 1, 4, 0.46], [7004, 1, 4, 0.66], [410, 1, 4, 0.52], [11770, 1, 4, 0.7], [7706, 2, 5, 0.8], [432, 3, 4, 1.01], [5208, 3, 5, 0.48], [3430, 15, 4, 0.35], [6952, 1, 4, 0.73], [13928, 1, 4, 1.15], [12373, 1, 5, 1.45], [20927, 1, 4, 1.05], [11954, 1, 4, 0.44], [94, 4, 4, 1.96], [1886, 2, 4, 0.44], [2331, 1, 4, 0.79], [3893, 1, 4, 0.52], [3891, 1, 4, 0.52], [114, 3, 4, 0.2], [11811, 1, 4, 0.38], [105, 3, 4, 0.48], [7886, 4, 6, 0.69], [3981, 3, 8, 0.51], [1274, 1, 4, 0.82], [952, 4, 4, 1.87], [13033, 3, 4, 0.5], [944, 15, 4, 0.37], [9690, 1, 4, 1.08], [11089, 1, 4, 1.16], [3, 2, 4, 2.0], [1490, 1, 4, 0.44], [1309, 1, 4, 0.73], [5946, 1, 4, 0.52], [5584, 3, 4, 1.16], [8898, 3, 4, 0.71], [5812, 3, 4, 1.51], [5733, 2, 5, 1.37], [7708, 2, 4, 1.05], [10407, 10, 6, 1.9], [10410, 10, 6, 1.9], [95, 3, 8, 2.52], [3028, 3, 4, 0.44], [3478, 2, 4, 1.0], [8274, 3, 4, 1.45], [7703, 2, 4, 1.05], [9342, 2, 4, 0.49], [10398, 2, 4, 1.36], [20555, 2, 4, 0.78], [3889, 1, 4, 0.52], [21003, 2, 4, 0.72], [13258, 29, 4, 1.02], [22558, 3, 4, 0.88], [9082, 3, 14, 0.83], [3980, 4, 4, 1.4], [10406, 10, 7, 1.73], [6497, 1, 4, 1.69], [20969, 3, 4, 0.86], [1339, 3, 10, 0.47], [963, 3, 4, 0.72], [192, 3, 13, 0.92], [5165, 2, 5, 0.65], [20196, 2, 4, 0.72], [10516, 3, 4, 1.94], [11603, 2, 4, 1.37], [141, 2, 177, 3.21], [362, 2, 170, 2.41], [8650, 2, 250, 5.1], [5491, 2, 123, 1.83], [361, 2, 187, 1.73], [5493, 2, 123, 2.24], [589, 2, 181, 2.16], [8672, 2, 323, 4.69], [11685, 2, 317, 3.77], [417, 2, 187, 1.67], [6935, 2, 319, 6.0], [205, 2, 123, 1.8], [11681, 2, 317, 6.0], [11838, 2, 303, 3.8], [12721, 2, 322, 4.24], [248, 1, 65, 1.94], [11837, 2, 319, 2.08], [142, 2, 187, 1.69], [6936, 2, 319, 5.36], [2778, 2, 178, 3.62], [1446, 2, 171, 2.42], [8676, 2, 340, 2.67], [615, 2, 130, 2.38], [21793, 1, 282, 5.05], [305, 2, 167, 3.68], [593, 2, 257, 1.75], [22247, 2, 339, 2.89], [11835, 2, 319, 1.88], [616, 2, 123, 2.27], [411, 2, 122, 2.4], [990, 2, 62, 1.69], [8675, 2, 323, 4.72], [10574, 3, 568, 4.89], [145, 2, 181, 3.21], [1429, 2, 181, 1.86], [6158, 2, 294, 3.33], [10149, 3, 1044, 2.45], [2050, 3, 542, 2.92], [146, 2, 171, 2.68], [88, 10, 632, 4.5], [2054, 3, 127, 2.99], [75, 2, 170, 4.19], [10993, 2, 60, 2.43], [144, 2, 181, 3.21], [7705, 2, 199, 3.7], [2424, 29, 40, 4.77], [346, 3, 682, 4.23], [2423, 80, 207, 3.96], [2859, 15, 82, 2.36], [7704, 2, 199, 3.7], [61, 3, 249, 1.65], [2423, 29, 44, 4.18], [9126, 1, 83, 3.14], [335, 3, 1555, 1.91], [5165, 1, 56, 2.94], [2424, 80, 198, 4.77], [13028, 3, 174, 2.92], [201, 3, 340, 4.48], [346, 1, 179, 3.77], [214, 3, 253, 4.28], [60, 3, 952, 4.46], [1519, 3, 1845, 2.61], [13023, 3, 703, 3.62], [308, 1, 190, 5.0], [1414, 15, 117, 1.77], [13034, 3, 667, 3.88]]</t>
-  </si>
-  <si>
-    <t>[[2778, 2, 8, 0.2], [6936, 2, 4, 1.17], [8672, 2, 6, 0.66], [305, 2, 5, 0.23], [615, 2, 4, 0.2], [145, 2, 4, 1.17], [12721, 2, 6, 0.72], [130, 1, 4, 0.36], [2327, 2, 5, 0.2], [361, 2, 4, 0.4], [2328, 2, 5, 0.26], [146, 2, 4, 0.87], [8675, 2, 4, 0.73], [11681, 2, 5, 0.71], [141, 2, 4, 0.4], [362, 2, 4, 0.69], [205, 2, 5, 0.2], [5491, 2, 4, 0.2], [8673, 2, 6, 0.73], [8676, 2, 5, 0.6], [144, 2, 5, 1.17], [8650, 2, 5, 1.28], [417, 2, 4, 0.4], [11837, 2, 5, 0.3], [3, 2, 5, 0.41], [6097, 80, 5, 2.36], [2423, 29, 4, 1.19], [6497, 1, 4, 0.2], [6097, 29, 4, 2.36], [11836, 2, 6, 0.2], [990, 2, 4, 0.45], [2424, 29, 4, 0.37], [593, 2, 5, 1.55], [6098, 80, 4, 2.59], [523, 2, 4, 0.76], [11739, 2, 4, 0.59], [944, 15, 4, 0.4], [88, 10, 9, 0.44], [10993, 2, 4, 0.52], [13260, 29, 4, 0.98], [8915, 2, 4, 0.78], [326, 2, 4, 0.5], [75, 2, 4, 1.56], [1413, 15, 4, 0.5], [10574, 3, 5, 1.08], [335, 3, 11, 1.25], [411, 2, 4, 0.92], [1339, 1, 4, 0.43], [1050, 2, 4, 0.2], [947, 15, 4, 0.51], [1339, 3, 12, 0.18], [151, 1, 4, 0.45], [6496, 1, 4, 1.31], [2859, 15, 4, 0.72], [7704, 2, 4, 1.79], [346, 1, 4, 0.43], [214, 3, 10, 1.24], [13258, 29, 4, 0.79], [345, 3, 4, 0.5], [10149, 3, 15, 0.74], [1490, 1, 4, 1.35], [346, 3, 5, 0.21], [1243, 2, 5, 0.86], [7004, 1, 4, 0.82], [11738, 2, 4, 0.94], [201, 3, 5, 1.05], [22558, 3, 7, 0.21], [432, 3, 4, 1.15], [2438, 1, 4, 0.4], [7705, 2, 4, 2.04], [5208, 3, 5, 0.54], [2912, 1, 4, 0.95], [229, 1, 4, 1.32], [61, 3, 4, 0.44], [963, 3, 4, 0.4], [10407, 10, 6, 1.9], [7706, 2, 4, 1.79], [2331, 1, 4, 1.05], [21793, 1, 4, 2.59], [13928, 1, 4, 1.15], [12229, 2, 5, 0.45], [3478, 2, 4, 1.0], [1548, 1, 4, 1.09], [2703, 3, 4, 1.97], [11844, 2, 4, 0.64], [13258, 25, 4, 0.79], [11490, 1, 4, 0.45], [114, 3, 4, 0.41], [7036, 1, 4, 0.43], [8938, 2, 4, 0.43], [9126, 1, 4, 1.19], [11687, 2, 4, 0.67], [10408, 10, 6, 1.66], [956, 2, 5, 0.57], [94, 4, 4, 1.96], [1886, 2, 4, 0.44], [410, 1, 4, 0.52], [11159, 1, 7, 0.67], [7708, 2, 5, 1.79], [2438, 2, 5, 0.53], [11690, 2, 4, 0.52], [9065, 2, 4, 0.54], [12870, 1, 4, 0.94], [9760, 29, 4, 0.92], [11161, 1, 5, 1.64], [11689, 2, 4, 0.66], [5976, 1, 4, 1.13], [7005, 1, 4, 1.06], [21781, 2, 4, 0.47], [1274, 1, 4, 1.98], [2805, 137, 5, 1.39], [20927, 1, 4, 0.47], [12373, 1, 5, 1.45], [2991, 3, 4, 2.12], [1699, 3, 4, 1.18], [5584, 3, 4, 1.16], [9209, 29, 4, 1.12], [3495, 3, 13, 1.28], [9690, 1, 4, 1.08], [7007, 1, 4, 1.28], [9239, 29, 4, 0.48], [11811, 1, 4, 0.38], [8600, 1, 4, 0.86], [9239, 25, 4, 0.48], [247, 1, 4, 1.54], [5769, 3, 6, 0.52], [9491, 21, 10, 1.75], [5076, 1, 4, 1.95], [13198, 29, 4, 0.94], [12764, 2, 6, 0.2], [9372, 1, 4, 1.74], [5869, 1, 4, 2.12], [7702, 2, 28, 1.25], [95, 3, 8, 0.42], [2778, 2, 175, 3.36], [6936, 2, 322, 5.18], [8672, 2, 324, 3.36], [305, 2, 167, 3.74], [615, 2, 123, 2.66], [145, 2, 181, 3.21], [12721, 2, 321, 4.47], [130, 1, 71, 1.65], [2327, 2, 170, 4.61], [361, 2, 185, 1.73], [2328, 2, 170, 4.64], [146, 2, 171, 4.04], [8675, 2, 342, 2.57], [11681, 2, 299, 3.49], [141, 2, 185, 1.73], [362, 2, 170, 2.54], [205, 2, 130, 1.95], [5491, 2, 121, 1.79], [8673, 2, 323, 4.83], [8676, 2, 324, 3.88], [144, 2, 171, 4.15], [8650, 2, 249, 6.0], [417, 2, 185, 1.73], [11837, 2, 304, 2.24], [3, 2, 135, 3.74], [6097, 80, 77, 6.0], [2423, 29, 44, 3.89], [6497, 1, 45, 1.56], [11836, 2, 304, 3.72], [990, 2, 21, 1.72], [2424, 29, 38, 3.3], [593, 2, 60, 3.77], [523, 2, 185, 2.42], [11739, 2, 68, 2.13], [944, 15, 12, 1.31], [88, 10, 673, 3.12], [10993, 2, 64, 1.96], [13260, 29, 81, 3.46], [8915, 2, 226, 2.46], [326, 2, 110, 1.92], [75, 2, 162, 3.96], [1413, 15, 117, 1.92], [10574, 3, 598, 3.33], [335, 3, 1428, 4.39], [411, 2, 121, 2.73], [1339, 1, 81, 2.01], [1050, 2, 30, 1.7], [947, 15, 49, 1.94], [1339, 3, 1955, 1.88], [151, 1, 26, 1.97], [6496, 1, 47, 3.48], [2859, 15, 77, 3.49], [7704, 2, 176, 5.37], [346, 1, 184, 1.79], [13258, 29, 46, 3.78], [345, 3, 357, 1.92], [10149, 3, 984, 2.7], [1490, 1, 58, 5.92], [346, 3, 699, 2.0], [1243, 2, 112, 4.28], [7004, 1, 94, 2.54], [11738, 2, 23, 2.53], [201, 3, 339, 4.27], [22558, 3, 529, 4.33], [432, 3, 339, 3.22], [2438, 1, 62, 2.95]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 6, 0.66], [141, 2, 4, 0.23], [2778, 2, 6, 0.34], [362, 2, 5, 0.48], [361, 2, 4, 0.37], [130, 1, 4, 0.36], [6935, 2, 8, 1.55], [12721, 2, 8, 1.21], [8676, 2, 5, 0.6], [2049, 3, 15, 0.2], [417, 2, 4, 0.37], [3, 2, 4, 1.22], [22247, 2, 5, 1.0], [6936, 2, 4, 0.47], [523, 2, 4, 0.41], [305, 2, 5, 0.73], [8650, 2, 4, 0.94], [2328, 2, 4, 1.04], [11739, 2, 4, 0.68], [8648, 2, 4, 1.69], [2776, 2, 4, 1.19], [2327, 2, 4, 0.39], [616, 2, 4, 1.04], [411, 2, 4, 0.37], [8674, 2, 5, 0.67], [2423, 29, 4, 1.0], [589, 2, 4, 0.9], [6497, 1, 6, 0.2], [2805, 137, 5, 0.94], [11835, 2, 4, 0.49], [6097, 80, 4, 2.11], [146, 2, 4, 1.17], [326, 2, 5, 0.66], [6097, 29, 5, 0.91], [583, 2, 4, 0.45], [2423, 80, 4, 0.94], [10149, 3, 13, 0.75], [145, 2, 4, 1.17], [11836, 2, 5, 0.54], [144, 2, 4, 1.17], [75, 2, 4, 1.56], [10574, 3, 5, 0.85], [6496, 1, 4, 1.31], [308, 1, 6, 0.54], [1413, 15, 4, 0.2], [2054, 3, 5, 0.81], [2422, 29, 4, 1.9], [1243, 2, 4, 1.06], [21793, 1, 4, 2.34], [1886, 2, 4, 0.44], [8915, 2, 4, 0.78], [944, 15, 4, 0.2], [247, 1, 4, 1.47], [1490, 1, 4, 1.35], [2859, 15, 4, 0.35], [335, 3, 11, 0.89], [1414, 15, 4, 0.48], [201, 3, 4, 0.24], [13928, 1, 4, 1.15], [3478, 2, 4, 1.0], [6158, 2, 6, 0.89], [7084, 3, 4, 0.95], [3934, 5, 7, 1.36], [11489, 1, 4, 0.41], [12526, 2, 4, 0.7], [1703, 2, 4, 0.56], [5812, 3, 4, 2.0], [11767, 1, 4, 1.1], [61, 3, 4, 0.44], [94, 4, 4, 1.04], [186, 3, 7, 0.56], [214, 3, 10, 1.24], [1519, 3, 9, 0.39], [1050, 2, 4, 0.37], [9491, 21, 10, 1.33], [11490, 1, 4, 0.35], [1309, 1, 4, 0.73], [2821, 3, 10, 0.27], [10398, 2, 4, 0.37], [5813, 3, 4, 2.0], [192, 3, 13, 1.01], [8898, 3, 4, 0.47], [8599, 1, 4, 0.37], [5811, 3, 5, 2.2], [229, 1, 4, 1.37], [11771, 1, 4, 0.82], [1699, 3, 4, 1.53], [2438, 2, 5, 0.53], [2991, 3, 5, 1.75], [3495, 3, 13, 1.28], [11769, 1, 4, 1.1], [8943, 3, 4, 0.39], [11811, 1, 4, 0.38], [1339, 3, 12, 0.18], [13928, 2, 4, 1.15], [12764, 2, 5, 0.43], [19687, 1, 4, 1.21], [7036, 1, 4, 0.43], [346, 3, 5, 0.42], [13260, 29, 4, 1.26], [22573, 2, 4, 0.99], [10124, 1, 4, 2.17], [9690, 1, 4, 1.08], [5584, 3, 4, 3.54], [3334, 5, 4, 1.1], [18964, 1, 4, 1.13], [7004, 1, 4, 0.75], [1277, 1, 4, 0.48], [2438, 1, 4, 0.4], [20927, 1, 4, 0.4], [1523, 1, 4, 1.01], [4001, 3, 9, 0.96], [11886, 2, 4, 0.75], [1701, 2, 4, 0.5], [45, 2, 4, 1.79], [11678, 1, 4, 1.44], [21269, 3, 4, 2.18], [8286, 2, 5, 0.62], [9373, 5, 4, 2.8], [10181, 26, 5, 0.46], [23031, 3, 4, 1.65], [3984, 3, 5, 0.62], [10516, 3, 4, 0.99], [11677, 1, 4, 1.53], [346, 1, 4, 0.43], [1339, 1, 4, 0.48], [3979, 3, 5, 0.88], [19924, 2, 4, 0.41], [23032, 3, 4, 1.46], [9069, 1, 4, 0.41], [9065, 2, 4, 0.54], [5976, 1, 4, 1.13], [8285, 2, 5, 0.49], [7005, 1, 4, 1.21], [8672, 2, 324, 4.66], [141, 2, 176, 3.4], [2778, 2, 175, 2.87], [362, 2, 160, 2.87], [361, 2, 186, 2.55], [130, 1, 71, 1.65], [6935, 2, 314, 6.0], [12721, 2, 323, 5.01], [8676, 2, 324, 3.88], [2049, 3, 618, 1.92], [417, 2, 186, 2.55], [3, 2, 143, 3.42], [22247, 2, 323, 4.61], [6936, 2, 331, 2.61], [523, 2, 176, 3.3], [305, 2, 166, 3.67], [8650, 2, 263, 4.15], [2328, 2, 170, 3.66], [11739, 2, 68, 2.27], [8648, 2, 263, 4.21], [2776, 2, 185, 3.25], [2327, 2, 170, 3.76], [616, 2, 120, 3.66], [411, 2, 129, 2.44], [8674, 2, 324, 2.49], [2423, 29, 44, 3.72], [589, 2, 181, 2.9], [6497, 1, 42, 3.28], [2805, 137, 212, 4.89], [11835, 2, 303, 3.22], [6097, 80, 52, 6.0], [146, 2, 181, 3.21], [326, 2, 104, 3.13], [6097, 29, 38, 3.55], [583, 2, 102, 2.56], [2423, 80, 220, 3.67], [10149, 3, 1052, 4.18], [145, 2, 181, 3.21], [11836, 2, 303, 3.32], [144, 2, 181, 3.21], [75, 2, 171, 3.96], [10574, 3, 565, 4.07], [6496, 1, 47, 3.48], [308, 1, 194, 4.19], [1413, 15, 111, 2.01], [2054, 3, 114, 3.24], [2422, 29, 44, 5.23], [1243, 2, 117, 3.0], [21793, 1, 273, 6.0], [1886, 2, 187, 1.81], [8915, 2, 226, 2.46], [944, 15, 46, 2.51], [247, 1, 103, 3.79], [1490, 1, 58, 5.92], [2859, 15, 82, 2.36], [1414, 15, 117, 1.88], [201, 3, 344, 2.12], [13928, 1, 53, 3.67], [3478, 2, 90, 2.89], [6158, 2, 294, 3.35], [7084, 3, 145, 2.79], [3934, 5, 619, 3.65], [11489, 1, 130, 1.75], [12526, 2, 325, 3.97], [1703, 2, 194, 2.63], [5812, 3, 700, 4.8]]</t>
-  </si>
-  <si>
-    <t>[[305, 2, 4, 0.2], [2328, 2, 5, 0.2], [130, 1, 4, 0.36], [8650, 2, 4, 0.46], [2778, 2, 5, 0.4], [5491, 2, 4, 0.2], [8672, 2, 7, 0.2], [143, 2, 6, 0.51], [362, 2, 4, 0.48], [145, 2, 5, 0.5], [6936, 2, 4, 1.26], [5493, 2, 5, 0.35], [361, 2, 4, 0.63], [417, 2, 4, 0.63], [11681, 2, 5, 0.71], [205, 2, 4, 0.56], [589, 2, 5, 0.2], [75, 2, 5, 0.97], [11737, 2, 4, 0.78], [146, 2, 4, 0.57], [523, 2, 4, 0.63], [12721, 2, 5, 0.48], [8853, 2, 4, 1.92], [8673, 2, 6, 0.2], [326, 2, 5, 0.85], [11835, 2, 5, 0.36], [308, 1, 5, 1.48], [8915, 2, 6, 1.14], [144, 2, 5, 0.46], [1005, 2, 4, 0.89], [8675, 2, 4, 1.2], [88, 10, 10, 0.19], [434, 2, 5, 0.3], [11739, 2, 4, 0.78], [142, 2, 4, 0.63], [8676, 2, 4, 2.16], [2424, 29, 4, 0.37], [6158, 2, 7, 0.2], [7704, 2, 4, 1.5], [2423, 29, 4, 1.19], [11738, 2, 4, 0.78], [11836, 2, 4, 0.22], [2424, 80, 4, 0.86], [1413, 15, 4, 0.2], [7705, 2, 4, 1.9], [2423, 80, 4, 0.79], [944, 15, 5, 0.2], [3, 2, 4, 0.79], [3478, 2, 4, 1.78], [7004, 1, 4, 1.31], [1414, 15, 4, 0.42], [2859, 15, 4, 1.62], [74, 1, 4, 1.09], [10149, 3, 13, 0.75], [6497, 1, 4, 0.45], [3429, 15, 4, 0.41], [10993, 2, 4, 0.4], [13928, 1, 4, 1.15], [346, 1, 4, 0.88], [18964, 1, 4, 1.13], [11919, 1, 4, 0.59], [346, 3, 5, 1.27], [60, 3, 5, 1.93], [13260, 29, 5, 1.42], [7036, 1, 4, 1.63], [94, 4, 4, 1.96], [1339, 3, 12, 0.18], [6952, 1, 4, 1.59], [3893, 1, 4, 1.35], [2991, 3, 4, 2.17], [13034, 3, 6, 0.9], [411, 2, 4, 1.01], [11089, 1, 4, 1.16], [1050, 2, 5, 0.2], [3891, 1, 4, 1.35], [1339, 1, 4, 0.43], [14037, 3, 4, 0.96], [7707, 2, 4, 1.25], [21793, 1, 4, 1.01], [563, 2, 4, 0.2], [8274, 3, 4, 0.83], [6630, 3, 4, 1.8], [3889, 1, 4, 1.35], [2912, 1, 4, 0.6], [1243, 2, 6, 0.7], [1490, 1, 4, 1.35], [7708, 2, 4, 1.5], [192, 3, 13, 1.24], [11581, 29, 4, 0.87], [9126, 1, 4, 1.25], [7886, 4, 5, 0.44], [13023, 3, 5, 0.45], [3495, 3, 13, 1.28], [5208, 3, 6, 0.23], [5940, 3, 4, 1.33], [11490, 1, 4, 0.48], [1309, 1, 4, 0.73], [1049, 2, 4, 0.2], [229, 1, 4, 1.32], [5165, 1, 4, 0.87], [22558, 3, 4, 0.88], [12229, 2, 5, 0.45], [13033, 3, 4, 0.8], [2331, 1, 4, 1.18], [201, 3, 4, 0.6], [2805, 137, 5, 1.01], [247, 1, 4, 0.37], [83, 2, 4, 0.75], [1274, 1, 4, 1.17], [6496, 1, 4, 1.55], [332, 2, 4, 0.2], [214, 3, 9, 1.24], [202, 2, 4, 0.2], [951, 4, 4, 1.56], [8898, 3, 4, 0.71], [20555, 2, 4, 0.58], [1703, 2, 4, 2.69], [9690, 1, 4, 1.08], [11770, 1, 4, 1.78], [335, 3, 10, 0.62], [942, 3, 4, 0.75], [7005, 1, 4, 1.01], [5812, 3, 4, 0.76], [114, 3, 4, 2.04], [21269, 3, 4, 4.0], [3934, 5, 7, 1.36], [8635, 3, 4, 0.83], [9827, 3, 4, 0.39], [10406, 10, 8, 1.73], [4940, 1, 4, 0.42], [186, 3, 7, 1.23], [1886, 2, 4, 0.2], [10527, 3, 8, 0.82], [10411, 10, 6, 1.79], [7885, 4, 4, 0.56], [9491, 21, 10, 1.33], [305, 2, 166, 3.17], [2328, 2, 170, 4.64], [130, 1, 71, 1.65], [8650, 2, 250, 4.6], [2778, 2, 175, 3.04], [5491, 2, 123, 2.03], [8672, 2, 319, 4.91], [143, 2, 170, 3.72], [362, 2, 169, 2.01], [145, 2, 171, 3.71], [6936, 2, 319, 5.75], [5493, 2, 130, 3.02], [361, 2, 186, 2.82], [417, 2, 186, 2.82], [11681, 2, 299, 3.49], [205, 2, 130, 2.04], [589, 2, 173, 1.81], [75, 2, 164, 4.57], [11737, 2, 68, 2.71], [146, 2, 171, 3.82], [523, 2, 186, 2.17], [12721, 2, 322, 4.26], [8853, 2, 319, 5.66], [8673, 2, 323, 4.83], [326, 2, 104, 2.86], [11835, 2, 302, 2.97], [308, 1, 201, 4.9], [8915, 2, 212, 3.94], [144, 2, 171, 3.63], [1005, 2, 67, 3.65], [8675, 2, 336, 3.6], [88, 10, 639, 4.85], [434, 2, 120, 2.22], [11739, 2, 68, 2.46], [142, 2, 186, 2.82], [8676, 2, 336, 5.12], [2424, 29, 38, 3.3], [6158, 2, 296, 3.82], [7704, 2, 198, 4.67], [2423, 29, 41, 3.35], [11738, 2, 68, 2.48], [11836, 2, 302, 3.64], [2424, 80, 191, 3.75], [1413, 15, 111, 3.12], [7705, 2, 198, 5.16], [2423, 80, 208, 3.41], [944, 15, 49, 2.34], [3, 2, 134, 4.73], [1414, 15, 117, 1.77], [74, 1, 241, 3.11], [10149, 3, 1044, 2.45], [6497, 1, 45, 1.83], [3429, 15, 63, 1.75], [10993, 2, 60, 2.43], [13928, 1, 53, 3.67], [346, 1, 179, 3.77], [18964, 1, 80, 3.14], [11919, 1, 177, 2.1], [346, 3, 682, 4.23], [60, 3, 952, 4.46], [13260, 29, 81, 4.53], [7036, 1, 144, 4.32], [94, 4, 137, 5.0], [1339, 3, 1955, 1.88]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 6, 0.87], [141, 2, 4, 0.2], [589, 2, 5, 0.2], [2327, 2, 5, 0.64], [2778, 2, 4, 0.2], [11681, 2, 10, 1.14], [6936, 2, 6, 0.44], [362, 2, 4, 0.56], [2328, 2, 5, 0.2], [205, 2, 4, 0.47], [130, 1, 4, 0.36], [2775, 2, 4, 0.2], [2049, 3, 5, 0.37], [8649, 2, 4, 0.64], [2776, 2, 4, 0.67], [361, 2, 5, 0.4], [143, 2, 5, 0.76], [593, 2, 6, 0.2], [206, 2, 4, 1.19], [5493, 2, 4, 0.6], [1429, 2, 4, 1.84], [523, 2, 5, 0.54], [7004, 1, 4, 0.53], [21793, 1, 4, 0.61], [413, 1, 4, 0.81], [12350, 1, 4, 2.08], [1124, 2, 4, 0.79], [7036, 1, 4, 1.53], [5165, 1, 4, 1.2], [12353, 1, 4, 2.08], [12349, 1, 5, 1.31], [145, 2, 4, 1.17], [434, 2, 4, 0.44], [248, 1, 4, 0.48], [201, 3, 6, 0.66], [6952, 1, 4, 1.29], [6097, 80, 5, 2.63], [10993, 2, 5, 0.73], [345, 3, 6, 0.2], [146, 2, 4, 1.17], [144, 2, 5, 0.61], [7084, 3, 5, 2.49], [11770, 1, 4, 0.2], [2050, 3, 4, 1.46], [12352, 1, 4, 2.08], [3891, 1, 4, 0.25], [2912, 1, 4, 1.16], [7005, 1, 4, 0.57], [998, 2, 5, 0.23], [997, 2, 4, 0.41], [432, 3, 4, 0.39], [3893, 1, 4, 0.49], [5165, 2, 7, 0.66], [12870, 1, 4, 1.19], [9372, 1, 4, 1.04], [6097, 29, 4, 2.66], [2424, 80, 4, 0.86], [20927, 1, 4, 0.51], [11772, 1, 4, 1.66], [6098, 80, 4, 1.64], [7885, 4, 4, 0.74], [10149, 3, 17, 0.75], [11089, 1, 4, 0.57], [3334, 5, 4, 0.7], [10574, 3, 5, 0.56], [12351, 1, 5, 0.56], [1492, 1, 5, 0.31], [4032, 29, 4, 0.8], [346, 3, 4, 0.93], [3889, 1, 4, 1.16], [1700, 2, 4, 0.64], [12304, 1, 4, 2.17], [1519, 3, 12, 0.22], [3576, 25, 4, 1.76], [13028, 3, 5, 1.36], [2912, 2, 5, 1.2], [214, 3, 9, 0.66], [1490, 1, 4, 0.72], [13034, 3, 5, 1.52], [972, 3, 4, 1.01], [229, 1, 4, 2.2], [11583, 29, 4, 0.49], [161, 3, 5, 1.45], [11426, 25, 4, 0.4], [5151, 2, 4, 0.45], [346, 1, 4, 0.93], [2331, 1, 4, 0.49], [8120, 3, 4, 0.6], [11490, 1, 4, 0.4], [995, 2, 4, 1.16], [3478, 2, 4, 0.62], [5076, 1, 4, 0.46], [5812, 3, 5, 2.0], [13893, 2, 4, 1.24], [10, 2, 4, 0.39], [9289, 29, 4, 1.08], [1309, 1, 4, 0.36], [410, 1, 4, 0.39], [12764, 2, 5, 0.43], [13023, 3, 6, 1.25], [2160, 68, 4, 1.02], [3575, 25, 4, 0.94], [2805, 137, 4, 0.94], [11404, 2, 5, 0.2], [3577, 25, 4, 0.52], [13280, 1, 4, 1.36], [75, 2, 5, 0.37], [2438, 2, 5, 0.53], [957, 2, 5, 0.91], [11814, 1, 4, 0.57], [11813, 1, 4, 0.84], [9069, 1, 4, 0.63], [9971, 2, 4, 1.14], [9967, 2, 4, 0.59], [11150, 2, 5, 0.45], [192, 3, 8, 1.79], [8943, 3, 4, 0.39], [9491, 21, 8, 1.33], [8283, 2, 6, 1.27], [5584, 3, 4, 4.0], [22317, 3, 4, 0.44], [24257, 1, 4, 1.22], [13249, 29, 4, 1.12], [9964, 2, 4, 1.6], [21697, 3, 4, 0.2], [9081, 3, 12, 0.98], [4586, 10, 10, 0.8], [105, 3, 4, 0.83], [4076, 3, 4, 1.42], [10609, 1, 4, 0.48], [9965, 2, 4, 1.14], [1413, 15, 4, 0.66], [335, 3, 9, 0.92], [10407, 10, 7, 1.94], [6935, 2, 311, 5.27], [141, 2, 173, 3.01], [589, 2, 172, 2.58], [2327, 2, 169, 3.3], [2778, 2, 174, 2.43], [11681, 2, 301, 6.0], [6936, 2, 311, 5.81], [362, 2, 157, 3.45], [2328, 2, 169, 4.01], [205, 2, 129, 1.78], [130, 1, 42, 1.5], [2775, 2, 174, 2.43], [2049, 3, 644, 1.69], [8649, 2, 261, 3.71], [2776, 2, 184, 2.34], [361, 2, 173, 3.53], [143, 2, 168, 3.68], [593, 2, 269, 2.09], [206, 2, 25, 2.78], [5493, 2, 127, 2.04], [1429, 2, 89, 4.32], [523, 2, 173, 3.41], [7004, 1, 94, 1.9], [21793, 1, 266, 4.32], [413, 1, 102, 2.44], [12350, 1, 722, 5.56], [1124, 2, 218, 2.61], [7036, 1, 143, 3.83], [5165, 1, 53, 4.04], [12353, 1, 722, 5.56], [12349, 1, 685, 5.29], [145, 2, 171, 3.27], [434, 2, 126, 2.14], [248, 1, 64, 1.8], [201, 3, 168, 4.66], [6952, 1, 210, 5.46], [6097, 80, 76, 6.0], [10993, 2, 59, 2.54], [345, 3, 335, 4.1], [146, 2, 180, 3.13], [144, 2, 171, 2.59], [7084, 3, 30, 4.42], [11770, 1, 246, 1.95], [12352, 1, 722, 5.56], [3891, 1, 138, 3.38], [2912, 1, 53, 3.11], [7005, 1, 94, 1.98], [998, 2, 272, 4.32], [997, 2, 287, 2.54], [432, 3, 355, 2.92], [3893, 1, 138, 2.52], [5165, 2, 450, 2.12], [12870, 1, 154, 3.17], [9372, 1, 260, 4.62], [6097, 29, 38, 6.0], [2424, 80, 198, 2.59], [20927, 1, 94, 1.86], [11772, 1, 251, 4.13], [6098, 80, 84, 4.94], [10149, 3, 982, 2.6], [11089, 1, 199, 2.89], [3334, 5, 212, 3.79], [10574, 3, 608, 1.86], [12351, 1, 685, 3.1], [1492, 1, 41, 2.21], [4032, 29, 107, 2.42]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 8, 0.97], [305, 2, 4, 0.75], [6935, 2, 8, 1.44], [141, 2, 5, 0.39], [2049, 3, 12, 0.2], [205, 2, 4, 0.2], [12721, 2, 6, 0.97], [130, 1, 4, 0.51], [144, 2, 4, 0.49], [589, 2, 6, 0.2], [362, 2, 4, 1.07], [146, 2, 4, 0.58], [145, 2, 4, 0.39], [593, 2, 5, 0.59], [990, 2, 4, 0.44], [1777, 1, 5, 0.93], [8915, 2, 5, 0.43], [2328, 2, 5, 0.55], [8648, 2, 5, 0.77], [6936, 2, 6, 1.17], [8650, 2, 5, 1.15], [22247, 2, 4, 0.95], [2778, 2, 5, 0.2], [1007, 2, 6, 0.2], [88, 10, 8, 0.44], [10, 2, 6, 0.2], [8677, 3, 5, 1.81], [8649, 2, 4, 1.4], [10149, 3, 17, 1.32], [2054, 3, 6, 0.58], [412, 1, 4, 0.91], [13028, 3, 5, 0.5], [10825, 21, 8, 1.13], [11681, 2, 5, 1.12], [361, 2, 4, 0.65], [413, 1, 4, 0.85], [7004, 1, 4, 0.4], [2055, 3, 4, 0.8], [2057, 3, 4, 0.8], [7084, 3, 4, 1.63], [411, 2, 4, 0.23], [308, 1, 5, 0.72], [410, 1, 4, 0.36], [6158, 2, 5, 0.9], [8938, 2, 5, 0.9], [8676, 2, 4, 0.97], [1124, 2, 6, 0.2], [432, 3, 5, 0.39], [167, 3, 5, 1.1], [45, 2, 4, 1.37], [7036, 1, 4, 1.64], [3495, 3, 17, 1.31], [7005, 1, 4, 0.4], [5081, 2, 8, 0.2], [94, 4, 5, 0.51], [9827, 3, 4, 0.2], [5812, 3, 5, 2.5], [3893, 1, 4, 0.28], [3889, 1, 4, 0.28], [12870, 1, 4, 2.58], [2049, 1, 4, 0.55], [3891, 1, 4, 0.28], [168, 3, 6, 0.29], [6097, 29, 4, 1.86], [1504, 2, 7, 0.2], [335, 3, 11, 1.1], [6097, 80, 4, 2.61], [11737, 2, 4, 0.41], [95, 3, 17, 0.32], [6098, 29, 4, 2.02], [346, 1, 5, 0.56], [998, 2, 4, 1.52], [79, 1, 4, 0.2], [214, 3, 9, 0.44], [3980, 4, 4, 1.39], [20927, 1, 4, 0.61], [9069, 1, 5, 1.09], [22316, 3, 6, 0.49], [83, 2, 4, 0.44], [6098, 80, 4, 2.48], [20498, 1, 5, 0.55], [8898, 3, 6, 2.17], [9760, 29, 4, 0.49], [1070, 7, 11, 0.42], [997, 2, 4, 1.04], [1622, 1, 5, 0.2], [14017, 3, 5, 0.42], [7567, 3, 4, 1.37], [13034, 3, 8, 1.01], [22554, 10, 11, 0.23], [13260, 29, 4, 0.85], [11116, 1, 5, 0.2], [1243, 2, 4, 0.79], [12924, 1, 4, 0.2], [22317, 3, 8, 0.26], [20498, 3, 6, 0.84], [5946, 1, 4, 0.28], [996, 2, 4, 1.39], [35, 1, 4, 1.05], [5086, 1, 8, 0.2], [5813, 3, 5, 1.32], [9691, 1, 5, 1.66], [995, 2, 4, 1.56], [1413, 15, 4, 0.2], [1080, 3, 4, 0.63], [952, 4, 4, 2.48], [11085, 2, 4, 0.45], [2424, 80, 4, 1.45], [8557, 3, 4, 0.2], [3049, 3, 5, 1.73], [1703, 2, 5, 1.38], [215, 4, 5, 3.32], [20486, 3, 8, 0.5], [39, 1, 4, 0.8], [3900, 3, 5, 1.18], [4076, 3, 4, 2.94], [9081, 3, 8, 0.53], [13023, 3, 5, 1.48], [8274, 3, 4, 0.53], [8943, 3, 5, 0.37], [34, 1, 4, 0.47], [20486, 1, 4, 0.51], [6497, 1, 5, 1.25], [8104, 1, 4, 0.2], [11510, 3, 5, 0.71], [2854, 21, 11, 0.45], [38, 1, 4, 0.47], [23611, 3, 4, 0.42], [3047, 3, 5, 1.0], [20969, 3, 5, 1.12], [1414, 15, 4, 0.2], [2878, 1, 4, 1.57], [114, 3, 4, 0.23], [12923, 1, 4, 0.5], [10529, 29, 4, 0.48], [8672, 2, 281, 5.07], [305, 2, 145, 3.64], [6935, 2, 278, 5.23], [141, 2, 152, 3.06], [2049, 3, 539, 2.4], [205, 2, 107, 2.48], [12721, 2, 296, 2.46], [130, 1, 62, 1.66], [144, 2, 151, 1.84], [589, 2, 161, 1.23], [362, 2, 139, 3.44], [146, 2, 151, 3.22], [145, 2, 159, 1.59], [593, 2, 119, 2.87], [990, 2, 54, 1.72], [1777, 1, 107, 3.88], [8915, 2, 200, 1.63], [2328, 2, 148, 3.16], [8648, 2, 218, 4.67], [6936, 2, 278, 4.62], [8650, 2, 218, 5.32], [22247, 2, 296, 3.03], [2778, 2, 153, 3.21], [1007, 2, 266, 1.69], [88, 10, 587, 2.65], [10, 2, 109, 2.73], [8677, 3, 289, 5.23], [8649, 2, 218, 5.01], [10149, 3, 853, 5.41], [2054, 3, 463, 4.27], [412, 1, 82, 3.82], [13028, 3, 145, 3.08], [10825, 21, 675, 2.7], [11681, 2, 274, 3.6], [361, 2, 152, 2.18], [413, 1, 85, 3.3], [7004, 1, 78, 2.8], [2055, 3, 488, 2.59], [2057, 3, 488, 4.38], [7084, 3, 127, 3.82], [411, 2, 107, 2.92], [308, 1, 166, 3.34], [410, 1, 102, 2.83], [6158, 2, 270, 3.55], [8938, 2, 198, 2.26], [8676, 2, 296, 2.62], [1124, 2, 184, 1.89], [432, 3, 297, 2.94], [167, 3, 236, 3.63], [45, 2, 108, 5.82], [7036, 1, 125, 4.63], [3495, 3, 950, 4.43], [7005, 1, 78, 2.8], [5081, 2, 189, 3.15], [94, 4, 117, 4.7], [9827, 3, 86, 3.03], [5812, 3, 611, 5.08], [3893, 1, 121, 1.92], [3889, 1, 121, 1.92], [12870, 1, 135, 6.0], [3891, 1, 121, 1.92], [168, 3, 399, 3.61], [1504, 2, 200, 2.99], [6097, 80, 68, 5.83], [11737, 2, 56, 2.55]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 10, 2.68], [3, 2, 7, 2.67], [326, 2, 11, 1.38], [589, 2, 15, 0.55], [143, 2, 7, 1.12], [2049, 3, 18, 1.93], [6935, 2, 18, 3.14], [130, 1, 7, 1.56], [205, 2, 7, 0.71], [75, 2, 7, 1.86], [12721, 2, 10, 1.69], [144, 2, 7, 1.42], [145, 2, 7, 1.0], [8915, 2, 12, 0.5], [1776, 1, 7, 1.17], [593, 2, 10, 2.33], [146, 2, 7, 2.25], [151, 1, 7, 0.71], [2778, 2, 13, 1.07], [1777, 1, 7, 1.85], [20252, 2, 7, 1.1], [206, 2, 7, 1.53], [8648, 2, 14, 4.89], [990, 2, 9, 1.73], [2328, 2, 9, 1.55], [6936, 2, 10, 2.57], [5151, 2, 7, 0.9], [7886, 4, 7, 0.87], [8650, 2, 14, 5.0], [88, 10, 17, 1.98], [141, 2, 7, 2.63], [74, 1, 7, 3.53], [83, 2, 7, 0.85], [1492, 1, 7, 1.85], [7004, 1, 7, 0.96], [2054, 3, 7, 1.03], [362, 2, 7, 2.4], [2057, 3, 7, 0.89], [10825, 21, 13, 2.02], [8649, 2, 14, 5.0], [2055, 3, 7, 0.81], [345, 3, 11, 0.97], [7084, 3, 7, 3.88], [7005, 1, 7, 0.73], [307, 2, 7, 1.93], [3889, 1, 7, 0.8], [21793, 1, 7, 4.02], [410, 1, 7, 1.0], [432, 3, 7, 1.15], [7887, 4, 7, 0.67], [22247, 2, 13, 2.72], [57, 1, 7, 1.0], [11681, 2, 14, 5.0], [10149, 3, 21, 1.67], [308, 1, 7, 2.55], [7036, 1, 7, 2.24], [94, 4, 7, 1.85], [12870, 1, 11, 5.0], [5081, 2, 9, 1.33], [9827, 3, 7, 0.53], [201, 3, 11, 0.87], [167, 3, 9, 2.77], [13028, 3, 7, 2.95], [8677, 3, 9, 1.26], [1504, 2, 7, 2.47], [1124, 2, 14, 0.68], [3891, 1, 7, 2.38], [35, 1, 9, 2.05], [3893, 1, 7, 2.38], [8676, 2, 7, 1.7], [168, 3, 11, 3.71], [9760, 29, 9, 0.92], [5812, 3, 8, 1.91], [1243, 2, 7, 1.27], [6158, 2, 10, 0.94], [412, 1, 7, 2.68], [45, 2, 7, 2.72], [361, 2, 7, 1.87], [20927, 1, 7, 1.14], [335, 3, 20, 0.93], [1767, 25, 7, 1.14], [3980, 4, 7, 2.74], [346, 1, 7, 3.18], [95, 3, 27, 0.67], [9069, 1, 7, 1.46], [214, 3, 18, 0.69], [998, 2, 7, 2.35], [2049, 1, 7, 1.19], [413, 1, 7, 2.06], [3495, 3, 18, 2.26], [8674, 2, 7, 1.7], [856, 1, 7, 0.73], [34, 1, 7, 1.65], [8898, 3, 7, 2.78], [11116, 1, 7, 0.86], [346, 3, 7, 1.57], [1766, 25, 9, 1.39], [5946, 1, 7, 2.23], [1070, 7, 15, 0.84], [997, 2, 9, 2.24], [9691, 1, 7, 3.41], [20498, 1, 7, 2.97], [38, 1, 7, 1.9], [974, 3, 9, 2.39], [152, 21, 7, 0.83], [9372, 1, 7, 3.6], [14017, 3, 7, 1.75], [1091, 1, 7, 1.5], [22317, 3, 9, 1.01], [11954, 1, 7, 3.89], [20498, 3, 10, 1.9], [996, 2, 7, 2.35], [82, 2, 7, 1.88], [1080, 3, 7, 1.59], [9828, 3, 7, 0.76], [14037, 3, 7, 1.09], [39, 1, 7, 1.62], [5811, 3, 7, 4.24], [3048, 3, 7, 3.93], [972, 3, 8, 1.9], [1767, 2, 7, 1.46], [13260, 29, 9, 2.46], [24, 1, 9, 1.96], [4203, 1, 9, 1.06], [5813, 3, 7, 4.0], [10780, 10, 7, 3.58], [13034, 3, 8, 2.39], [5513, 2, 7, 1.93], [8945, 3, 8, 2.34], [952, 4, 7, 4.16], [202, 2, 7, 3.13], [3981, 3, 17, 2.74], [3900, 3, 7, 0.94], [995, 2, 7, 2.53], [6497, 1, 7, 0.9], [3893, 1, 138, 3.95], [8676, 2, 339, 2.47], [168, 3, 427, 4.48], [9760, 29, 80, 2.17], [5812, 3, 664, 3.68], [1243, 2, 110, 2.26], [6158, 2, 295, 3.16], [412, 1, 93, 4.36], [45, 2, 120, 4.53], [361, 2, 173, 3.11], [20927, 1, 90, 2.13], [335, 3, 1468, 2.53], [1767, 25, 193, 3.4], [3980, 4, 568, 3.51], [346, 1, 177, 3.95], [95, 3, 1223, 3.3], [9069, 1, 136, 2.45], [214, 3, 734, 1.69], [998, 2, 284, 3.12], [2049, 1, 8, 1.64], [413, 1, 96, 3.86], [3495, 3, 1083, 4.16], [8674, 2, 339, 2.47], [856, 1, 41, 1.49], [34, 1, 125, 3.59], [8898, 3, 316, 5.08], [11116, 1, 90, 2.07], [346, 3, 674, 2.8], [1766, 25, 210, 3.33], [5946, 1, 138, 3.78], [1070, 7, 661, 3.14], [997, 2, 269, 4.04], [9691, 1, 84, 4.24], [20498, 1, 109, 4.11], [38, 1, 125, 3.64], [974, 3, 166, 3.95], [9372, 1, 256, 5.15], [14017, 3, 220, 4.21], [1091, 1, 56, 2.26], [22317, 3, 355, 2.78], [11954, 1, 218, 4.66], [20498, 3, 654, 3.7], [996, 2, 284, 3.12], [82, 2, 67, 2.87], [1080, 3, 148, 3.39], [9828, 3, 98, 2.69], [39, 1, 125, 2.94], [5811, 3, 696, 5.0], [3048, 3, 303, 5.48], [972, 3, 667, 3.43], [1767, 2, 38, 2.94], [13260, 29, 81, 3.46], [24, 1, 126, 3.39], [4203, 1, 55, 2.86], [5813, 3, 661, 4.76], [10780, 10, 429, 5.39], [13034, 3, 664, 3.98], [5513, 2, 93, 2.69], [952, 4, 85, 4.92], [202, 2, 85, 3.89], [3981, 3, 1906, 3.51], [3900, 3, 52, 1.71], [995, 2, 284, 3.3], [6497, 1, 44, 1.66]]</t>
-  </si>
-  <si>
-    <t>[[305, 2, 9, 1.32], [6935, 2, 11, 4.09], [589, 2, 8, 1.6], [2778, 2, 11, 1.18], [144, 2, 7, 1.04], [8915, 2, 10, 1.06], [130, 1, 7, 0.69], [2328, 2, 11, 1.39], [6936, 2, 7, 3.27], [205, 2, 9, 0.67], [8648, 2, 14, 3.54], [2775, 2, 7, 2.56], [593, 2, 11, 2.52], [145, 2, 7, 0.96], [146, 2, 7, 1.35], [5493, 2, 7, 0.74], [11681, 2, 9, 4.95], [7036, 1, 7, 3.63], [88, 10, 24, 2.1], [2776, 2, 7, 2.04], [141, 2, 7, 0.72], [151, 1, 7, 0.98], [1446, 2, 7, 1.5], [206, 2, 7, 1.45], [990, 2, 7, 0.75], [9760, 29, 9, 1.24], [248, 1, 7, 1.02], [5491, 2, 7, 0.77], [1007, 2, 7, 0.73], [8672, 2, 7, 5.0], [142, 2, 7, 1.77], [362, 2, 7, 1.0], [2912, 1, 7, 1.75], [10993, 2, 7, 1.25], [3893, 1, 7, 0.71], [12870, 1, 9, 3.33], [5165, 1, 7, 2.14], [7886, 4, 7, 0.8], [2055, 3, 7, 1.07], [417, 2, 7, 1.77], [9372, 1, 7, 3.88], [1622, 1, 11, 0.59], [3889, 1, 9, 1.13], [523, 2, 7, 1.19], [2054, 3, 7, 2.19], [7573, 1, 21, 5.0], [21793, 1, 7, 1.7], [10, 2, 9, 1.14], [7885, 4, 7, 1.19], [3891, 1, 7, 0.76], [10149, 3, 21, 2.82], [75, 2, 7, 2.18], [20927, 1, 7, 2.5], [61, 3, 7, 2.37], [5208, 3, 14, 0.79], [997, 2, 7, 2.75], [3, 2, 9, 1.83], [9491, 21, 29, 0.96], [12721, 2, 7, 3.06], [5165, 2, 8, 1.95], [35, 1, 9, 2.98], [83, 2, 11, 1.48], [998, 2, 7, 1.56], [22247, 2, 7, 2.52], [33, 1, 9, 2.92], [996, 2, 7, 2.88], [346, 3, 7, 5.0], [7887, 4, 7, 2.05], [972, 3, 10, 1.66], [5076, 1, 7, 2.68], [2805, 137, 7, 4.94], [229, 1, 7, 2.98], [6158, 2, 9, 1.56], [2424, 80, 7, 2.78], [34, 1, 9, 3.0], [13028, 3, 7, 4.0], [2912, 2, 12, 3.01], [13928, 1, 7, 2.56], [38, 1, 9, 3.05], [8898, 3, 7, 5.0], [346, 1, 7, 5.0], [76, 2, 7, 1.69], [12212, 29, 9, 0.9], [8104, 1, 7, 1.79], [2336, 3, 8, 1.19], [9690, 1, 7, 1.19], [5209, 3, 9, 1.92], [39, 1, 9, 3.02], [3495, 3, 18, 2.75], [11952, 1, 7, 1.27], [7567, 3, 7, 3.04], [2424, 29, 7, 1.27], [5946, 1, 7, 1.02], [11490, 1, 9, 1.14], [24257, 1, 7, 1.0], [9691, 1, 7, 2.06], [3048, 3, 7, 1.77], [11770, 1, 7, 3.84], [411, 2, 7, 1.64], [21798, 1, 7, 1.14], [1703, 2, 7, 2.56], [13928, 2, 7, 2.56], [632, 11, 21, 0.84], [11953, 1, 9, 0.75], [74, 1, 7, 5.0], [161, 3, 9, 4.12], [10407, 10, 12, 3.76], [22316, 3, 9, 1.16], [13023, 3, 10, 1.41], [1523, 1, 7, 0.81], [21269, 3, 7, 1.96], [10410, 10, 15, 3.8], [192, 3, 15, 2.1], [12764, 2, 10, 2.01], [214, 3, 15, 1.01], [2331, 1, 7, 3.16], [972, 1, 7, 1.94], [3430, 15, 7, 2.79], [5164, 1, 7, 1.93], [13893, 2, 7, 4.11], [1274, 1, 7, 1.55], [4076, 3, 7, 2.73], [6097, 80, 7, 2.43], [6097, 29, 7, 2.31], [11116, 1, 7, 1.08], [3576, 29, 7, 2.44], [10408, 10, 8, 3.12], [1080, 3, 7, 2.78], [1243, 2, 9, 2.48], [3047, 3, 7, 2.68], [10780, 10, 7, 3.61], [2438, 2, 8, 3.45], [8674, 2, 7, 3.66], [11813, 1, 7, 1.41], [3334, 5, 7, 4.94], [2436, 4, 7, 1.36], [346, 3, 678, 5.86], [972, 3, 650, 3.9], [5076, 1, 150, 3.54], [2805, 137, 203, 5.8], [229, 1, 89, 4.15], [6158, 2, 285, 2.64], [2424, 80, 186, 3.86], [13028, 3, 161, 4.86], [13928, 1, 51, 3.92], [8898, 3, 327, 6.0], [346, 1, 170, 5.86], [76, 2, 119, 3.73], [12212, 29, 131, 3.03], [8104, 1, 236, 2.65], [2336, 3, 675, 2.05], [9690, 1, 83, 2.38], [3495, 3, 1056, 3.61], [11952, 1, 230, 2.13], [7567, 3, 76, 4.21], [2424, 29, 37, 2.13], [5946, 1, 135, 2.11], [11490, 1, 63, 2.57], [24257, 1, 154, 2.09], [9691, 1, 87, 2.92], [3048, 3, 313, 2.63], [11770, 1, 243, 4.7], [411, 2, 118, 2.73], [21798, 1, 161, 2.0], [1703, 2, 179, 3.73], [13928, 2, 27, 3.42], [632, 11, 949, 1.71], [11953, 1, 218, 1.96], [74, 1, 219, 6.0], [161, 3, 837, 4.99], [10407, 10, 1263, 5.88], [22316, 3, 346, 2.25], [13023, 3, 657, 3.53], [1523, 1, 51, 1.89], [21269, 3, 332, 2.82], [10410, 10, 1263, 5.22], [192, 3, 1615, 2.95], [12764, 2, 810, 3.87], [2331, 1, 134, 4.02], [972, 1, 108, 2.8], [3430, 15, 75, 3.89], [5164, 1, 55, 2.79], [13893, 2, 310, 4.97], [1274, 1, 90, 2.41], [4076, 3, 230, 3.59], [6097, 80, 76, 3.59], [6097, 29, 38, 3.4], [11116, 1, 92, 1.94], [3576, 29, 39, 3.3], [10408, 10, 881, 3.97], [1080, 3, 138, 3.87], [1243, 2, 107, 4.36], [3047, 3, 294, 4.59], [10780, 10, 410, 5.32], [2438, 2, 682, 5.35], [8674, 2, 323, 4.51], [11813, 1, 362, 2.27], [3334, 5, 203, 5.8], [2436, 4, 126, 3.21]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 10, 2.95], [130, 1, 7, 0.67], [11685, 2, 7, 3.6], [8648, 2, 9, 2.71], [144, 2, 7, 2.5], [589, 2, 8, 0.61], [2327, 2, 7, 0.98], [11681, 2, 9, 3.34], [205, 2, 7, 0.74], [593, 2, 14, 1.01], [305, 2, 7, 1.23], [8915, 2, 8, 0.93], [141, 2, 9, 1.58], [8650, 2, 7, 2.25], [151, 1, 7, 0.77], [6936, 2, 14, 4.75], [2778, 2, 9, 1.43], [206, 2, 7, 1.57], [146, 2, 7, 2.06], [88, 10, 18, 0.73], [615, 2, 7, 1.53], [7036, 1, 7, 2.85], [1446, 2, 7, 1.73], [990, 2, 7, 0.69], [362, 2, 7, 0.96], [8853, 2, 7, 2.37], [417, 2, 7, 0.93], [248, 1, 7, 0.75], [2055, 3, 7, 4.16], [523, 2, 7, 1.56], [3893, 1, 7, 0.83], [12870, 1, 7, 3.69], [142, 2, 7, 0.93], [12350, 1, 7, 2.38], [2057, 3, 7, 3.77], [3889, 1, 7, 1.75], [7084, 3, 7, 1.65], [20927, 1, 7, 1.66], [7005, 1, 7, 1.29], [997, 2, 7, 1.75], [12349, 1, 7, 4.99], [21793, 1, 7, 2.58], [3891, 1, 7, 1.49], [61, 3, 9, 2.43], [7885, 4, 9, 1.03], [5165, 1, 7, 2.14], [6158, 2, 21, 1.5], [8672, 2, 14, 2.68], [5165, 2, 8, 2.15], [9491, 21, 20, 1.13], [2912, 1, 7, 1.67], [98, 11, 16, 1.21], [972, 3, 11, 3.54], [411, 2, 7, 1.73], [9372, 1, 7, 4.23], [10388, 2, 7, 1.16], [214, 3, 18, 0.67], [33, 1, 7, 3.41], [410, 1, 7, 2.57], [7886, 4, 7, 1.19], [13928, 1, 7, 2.18], [7567, 3, 7, 2.7], [9081, 3, 16, 1.41], [3981, 3, 22, 2.41], [22316, 3, 7, 0.98], [83, 2, 7, 1.41], [22247, 2, 7, 2.12], [336, 15, 7, 1.77], [308, 1, 7, 3.55], [2912, 2, 8, 3.01], [10631, 2, 7, 0.81], [161, 3, 8, 4.87], [229, 1, 7, 3.17], [5946, 1, 7, 1.49], [11953, 1, 7, 1.06], [10780, 10, 7, 3.43], [22317, 3, 7, 1.67], [6497, 1, 7, 0.9], [345, 3, 7, 1.46], [12271, 2, 7, 0.9], [3478, 2, 7, 1.93], [11767, 1, 7, 0.83], [10407, 10, 10, 3.53], [10410, 10, 10, 3.57], [9082, 3, 33, 2.42], [37, 1, 7, 2.23], [972, 1, 7, 1.51], [6097, 80, 7, 3.68], [39, 1, 7, 1.71], [8104, 1, 7, 0.73], [74, 1, 7, 4.11], [1413, 15, 7, 0.69], [34, 1, 7, 1.79], [82, 2, 7, 1.27], [7704, 2, 7, 2.41], [3048, 3, 7, 0.92], [24257, 1, 7, 2.73], [2331, 1, 7, 3.53], [192, 3, 20, 1.59], [335, 3, 15, 2.02], [152, 21, 9, 0.89], [38, 1, 7, 1.27], [9971, 2, 7, 3.23], [12338, 29, 9, 0.69], [9, 1, 7, 0.87], [4253, 1, 7, 1.29], [1523, 1, 7, 0.85], [45, 2, 7, 5.0], [12721, 2, 7, 2.09], [11510, 3, 8, 2.0], [6097, 29, 7, 3.68], [10936, 2, 7, 2.38], [8673, 2, 7, 4.12], [2805, 137, 7, 3.07], [10093, 3, 15, 1.68], [1080, 3, 7, 0.71], [7007, 1, 7, 2.33], [12764, 2, 8, 1.43], [3047, 3, 7, 4.74], [12212, 29, 7, 0.94], [7705, 2, 7, 2.56], [1895, 3, 7, 3.57], [8659, 1, 7, 3.34], [7706, 2, 7, 2.31], [9965, 2, 7, 4.66], [6496, 1, 7, 2.09], [8676, 2, 7, 1.46], [11812, 1, 7, 0.9], [201, 3, 7, 2.62], [2424, 80, 7, 2.59], [8635, 3, 7, 2.86], [4203, 1, 7, 1.08], [1703, 2, 7, 2.63], [3475, 2, 7, 3.15], [2438, 2, 8, 2.12], [308, 1, 161, 4.6], [10631, 2, 234, 1.62], [161, 3, 730, 5.94], [229, 1, 88, 3.97], [5946, 1, 135, 2.3], [11953, 1, 217, 1.87], [10780, 10, 395, 4.24], [22317, 3, 323, 3.38], [6497, 1, 38, 1.95], [345, 3, 304, 2.92], [12271, 2, 69, 1.71], [3478, 2, 76, 2.74], [11767, 1, 166, 1.87], [10407, 10, 1170, 4.35], [10410, 10, 1232, 4.39], [9082, 3, 2644, 3.25], [37, 1, 114, 3.22], [972, 1, 106, 2.32], [6097, 80, 74, 4.49], [39, 1, 114, 2.52], [8104, 1, 95, 1.43], [74, 1, 214, 4.92], [1413, 15, 96, 1.49], [34, 1, 114, 2.99], [82, 2, 61, 2.08], [7704, 2, 191, 3.22], [3048, 3, 277, 1.97], [24257, 1, 140, 3.78], [2331, 1, 123, 4.34], [192, 3, 1529, 2.41], [335, 3, 1394, 2.81], [38, 1, 120, 2.08], [9971, 2, 292, 4.04], [12338, 29, 54, 1.8], [9, 1, 37, 1.68], [4253, 1, 187, 2.11], [1523, 1, 51, 1.66], [45, 2, 110, 6.0], [12721, 2, 308, 2.89], [11510, 3, 602, 3.04], [6097, 29, 37, 4.49], [10936, 2, 144, 3.19], [8673, 2, 301, 4.93], [2805, 137, 186, 3.88], [10093, 3, 887, 2.49], [1080, 3, 139, 1.52], [7007, 1, 85, 3.14], [12764, 2, 798, 2.24], [3047, 3, 275, 5.55], [12212, 29, 129, 1.75], [7705, 2, 191, 3.38], [1895, 3, 316, 4.38], [8659, 1, 128, 4.15], [7706, 2, 191, 3.12], [9965, 2, 277, 5.47], [6496, 1, 43, 2.9], [8676, 2, 310, 2.27], [11812, 1, 258, 1.7], [201, 3, 320, 3.42], [2424, 80, 182, 3.4], [8635, 3, 363, 3.67], [4203, 1, 53, 1.88], [1703, 2, 176, 3.43], [3475, 2, 63, 3.96], [2438, 2, 671, 2.92]]</t>
-  </si>
-  <si>
-    <t>[[326, 2, 8, 1.03], [6935, 2, 23, 3.05], [362, 2, 9, 1.88], [2049, 3, 16, 0.8], [589, 2, 12, 0.5], [141, 2, 7, 1.04], [75, 2, 11, 1.99], [1776, 1, 7, 1.12], [8672, 2, 15, 2.16], [20252, 2, 7, 0.74], [205, 2, 7, 0.93], [7886, 4, 7, 1.01], [2778, 2, 8, 0.81], [1777, 1, 7, 2.22], [305, 2, 7, 0.92], [11681, 2, 10, 5.0], [593, 2, 11, 2.33], [8648, 2, 9, 3.46], [6936, 2, 10, 2.79], [2328, 2, 7, 0.94], [1007, 2, 10, 1.03], [88, 10, 21, 1.69], [83, 2, 7, 0.96], [5151, 2, 7, 1.96], [8650, 2, 9, 3.5], [412, 1, 7, 2.67], [345, 3, 7, 1.1], [2991, 3, 7, 4.78], [22247, 2, 9, 2.4], [361, 2, 7, 0.94], [144, 2, 7, 1.44], [57, 1, 9, 0.93], [201, 3, 8, 1.0], [21793, 1, 7, 3.62], [10149, 3, 25, 3.26], [45, 2, 7, 2.65], [3478, 2, 7, 0.87], [146, 2, 7, 2.68], [2054, 3, 9, 3.23], [7004, 1, 7, 0.9], [12721, 2, 10, 1.78], [167, 3, 7, 2.5], [2057, 3, 7, 3.23], [413, 1, 7, 2.06], [10825, 21, 13, 2.1], [6158, 2, 10, 2.87], [74, 1, 7, 3.5], [168, 3, 7, 1.38], [308, 1, 7, 2.44], [346, 1, 7, 0.74], [2055, 3, 7, 1.92], [10, 2, 17, 2.16], [7036, 1, 9, 4.85], [13028, 3, 7, 1.61], [3495, 3, 21, 1.64], [335, 3, 27, 3.16], [432, 3, 7, 1.61], [5081, 2, 9, 0.59], [7887, 4, 7, 0.77], [12870, 1, 9, 5.0], [214, 3, 15, 0.77], [8649, 2, 7, 2.97], [79, 1, 7, 0.73], [410, 1, 7, 1.54], [1492, 1, 7, 1.2], [3889, 1, 7, 2.63], [145, 2, 9, 0.73], [9827, 3, 7, 0.86], [3893, 1, 7, 1.67], [1504, 2, 9, 0.89], [5208, 3, 16, 1.05], [95, 3, 21, 3.57], [13260, 29, 7, 1.89], [5812, 3, 8, 2.16], [23, 1, 7, 2.91], [94, 4, 7, 2.79], [411, 2, 7, 1.46], [7005, 1, 7, 1.19], [3891, 1, 7, 1.3], [998, 2, 7, 2.66], [25, 1, 7, 2.91], [21269, 3, 7, 5.0], [7567, 3, 7, 3.13], [10574, 3, 9, 2.33], [5086, 1, 9, 2.04], [1243, 2, 9, 2.8], [9069, 1, 7, 2.45], [2878, 1, 7, 2.42], [997, 2, 9, 3.39], [11954, 1, 7, 1.34], [9691, 1, 7, 3.66], [856, 1, 7, 0.92], [11914, 1, 11, 1.02], [20927, 1, 7, 2.0], [1703, 2, 7, 3.38], [5660, 2, 7, 3.65], [5584, 3, 7, 4.0], [952, 4, 7, 5.0], [5209, 3, 9, 0.67], [9081, 3, 14, 3.64], [8898, 3, 7, 5.0], [996, 2, 7, 4.61], [1070, 7, 13, 1.16], [346, 3, 8, 1.14], [1622, 1, 11, 0.85], [8676, 2, 7, 1.94], [12661, 1, 7, 4.53], [23961, 3, 7, 5.0], [5513, 2, 7, 1.63], [1091, 1, 7, 1.1], [22317, 3, 8, 1.15], [8274, 3, 7, 1.92], [13034, 3, 12, 3.0], [11811, 1, 7, 3.08], [24, 1, 7, 2.51], [1519, 3, 21, 0.94], [27, 1, 7, 2.91], [8674, 2, 10, 1.94], [6097, 29, 11, 2.58], [9760, 29, 11, 0.62], [4203, 1, 7, 1.27], [6097, 80, 7, 2.41], [10529, 29, 7, 2.85], [82, 2, 7, 0.67], [1413, 15, 7, 1.44], [995, 2, 9, 4.44], [9082, 3, 21, 1.17], [20498, 3, 8, 3.76], [66, 1, 7, 0.81], [2104, 3, 10, 2.99], [6098, 80, 7, 2.21], [9372, 1, 7, 1.93], [6098, 29, 7, 1.86], [34, 1, 7, 1.48], [9827, 3, 86, 3.01], [3893, 1, 121, 3.33], [1504, 2, 200, 3.04], [5208, 3, 554, 2.2], [95, 3, 1090, 4.25], [13260, 29, 71, 3.0], [5812, 3, 580, 4.28], [23, 1, 115, 3.59], [94, 4, 117, 3.69], [411, 2, 107, 2.48], [7005, 1, 78, 2.47], [3891, 1, 121, 3.52], [998, 2, 232, 5.07], [25, 1, 115, 3.59], [21269, 3, 289, 6.0], [7567, 3, 68, 4.03], [10574, 3, 499, 3.22], [5086, 1, 181, 4.19], [1243, 2, 96, 3.48], [2878, 1, 78, 3.29], [997, 2, 232, 4.07], [11954, 1, 194, 2.02], [9691, 1, 73, 4.81], [856, 1, 34, 1.82], [11914, 1, 83, 3.67], [1703, 2, 159, 4.78], [5660, 2, 171, 4.33], [5584, 3, 231, 5.27], [952, 4, 71, 6.0], [5209, 3, 554, 2.85], [9081, 3, 453, 5.8], [8898, 3, 274, 6.0], [996, 2, 245, 5.29], [1070, 7, 580, 2.82], [346, 3, 633, 1.82], [1622, 1, 56, 1.39], [8676, 2, 296, 2.62], [12661, 1, 77, 5.59], [23961, 3, 282, 5.84], [5513, 2, 76, 2.31], [1091, 1, 47, 2.93], [22317, 3, 311, 2.56], [13034, 3, 577, 4.66], [11811, 1, 446, 3.75], [24, 1, 110, 3.81], [1519, 3, 1611, 2.61], [27, 1, 115, 3.59], [8674, 2, 296, 2.62], [6097, 29, 36, 3.26], [9760, 29, 71, 2.53], [4203, 1, 47, 2.68], [6097, 80, 68, 3.09], [10529, 29, 39, 4.25], [82, 2, 59, 1.57], [1413, 15, 96, 2.72], [995, 2, 232, 5.59], [9082, 3, 2416, 3.42], [20498, 3, 580, 4.44], [66, 1, 40, 1.49], [2104, 3, 328, 3.89], [6098, 80, 75, 2.89], [9372, 1, 236, 2.61], [6098, 29, 39, 2.54], [34, 1, 110, 2.16]]</t>
-  </si>
-  <si>
-    <t>[[589, 2, 10, 0.87], [88, 10, 29, 1.1], [2327, 2, 7, 1.0], [8915, 2, 10, 1.06], [6935, 2, 14, 4.34], [2778, 2, 7, 0.55], [305, 2, 7, 1.07], [2328, 2, 11, 1.46], [130, 1, 7, 0.69], [5493, 2, 11, 0.5], [616, 2, 9, 0.85], [326, 2, 11, 2.77], [6936, 2, 7, 3.27], [8648, 2, 7, 3.27], [8650, 2, 9, 4.87], [1446, 2, 9, 1.57], [7004, 1, 7, 2.5], [205, 2, 7, 0.85], [2049, 3, 10, 1.17], [144, 2, 7, 2.5], [10, 2, 7, 2.3], [151, 1, 7, 0.98], [990, 2, 7, 0.75], [7036, 1, 14, 4.62], [3893, 1, 7, 2.11], [146, 2, 7, 2.06], [7885, 4, 7, 0.94], [141, 2, 7, 1.77], [3891, 1, 7, 1.55], [206, 2, 7, 1.02], [75, 2, 9, 2.39], [2055, 3, 7, 1.91], [362, 2, 7, 2.9], [10993, 2, 7, 0.87], [21793, 1, 7, 1.66], [5208, 3, 14, 0.79], [3889, 1, 26, 2.13], [7084, 3, 7, 3.02], [11234, 2, 7, 2.7], [7005, 1, 7, 1.31], [3980, 4, 8, 2.38], [12870, 1, 7, 3.72], [2912, 1, 9, 2.08], [145, 2, 7, 2.89], [5165, 1, 7, 2.07], [10149, 3, 21, 2.85], [8672, 2, 7, 5.0], [9760, 29, 7, 0.97], [998, 2, 7, 1.5], [20927, 1, 7, 2.5], [997, 2, 7, 2.49], [2436, 4, 7, 1.36], [417, 2, 7, 1.77], [2424, 80, 7, 2.78], [7887, 4, 9, 2.05], [6158, 2, 9, 1.56], [3, 2, 11, 1.58], [5076, 1, 9, 1.7], [632, 11, 21, 0.84], [229, 1, 7, 3.17], [972, 3, 9, 1.92], [3495, 3, 14, 1.61], [74, 1, 7, 2.35], [9491, 21, 21, 3.04], [523, 2, 7, 1.19], [11770, 1, 7, 2.08], [346, 3, 7, 2.56], [11953, 1, 7, 0.87], [5165, 2, 8, 2.08], [7573, 1, 16, 4.81], [12721, 2, 7, 1.45], [996, 2, 7, 1.96], [22316, 3, 9, 1.16], [2423, 80, 9, 3.79], [11772, 1, 7, 3.73], [9372, 1, 7, 3.88], [3981, 3, 22, 1.14], [6497, 1, 7, 0.94], [24257, 1, 9, 1.19], [2912, 2, 12, 3.01], [11952, 1, 7, 1.27], [2438, 2, 8, 3.32], [12229, 2, 7, 0.69], [823, 1, 7, 1.25], [361, 2, 7, 1.77], [2424, 29, 7, 0.89], [8898, 3, 9, 5.0], [3975, 4, 9, 2.75], [346, 1, 7, 3.21], [1622, 1, 7, 0.94], [6496, 1, 7, 2.37], [192, 3, 15, 2.1], [10407, 10, 12, 3.53], [3900, 3, 7, 1.43], [5209, 3, 9, 1.54], [2805, 137, 7, 2.41], [9081, 3, 12, 1.23], [5946, 1, 7, 1.02], [33, 1, 7, 1.23], [11812, 1, 7, 0.9], [335, 3, 18, 2.53], [1703, 2, 7, 1.39], [7567, 3, 7, 3.04], [12764, 2, 8, 1.48], [10388, 2, 7, 3.21], [11490, 1, 7, 0.92], [37, 1, 7, 0.9], [8676, 2, 7, 5.0], [6097, 80, 7, 2.16], [972, 1, 7, 1.94], [202, 2, 7, 1.69], [220, 4, 7, 2.52], [1519, 3, 18, 0.78], [22247, 2, 7, 2.5], [23611, 3, 8, 0.88], [161, 3, 9, 4.12], [35, 1, 7, 1.23], [38, 1, 7, 1.8], [13893, 2, 7, 4.11], [2104, 3, 15, 2.31], [11814, 1, 7, 0.92], [95, 3, 22, 0.85], [83, 2, 7, 1.1], [4232, 80, 7, 3.5], [1895, 3, 7, 4.76], [11813, 1, 7, 1.41], [11116, 1, 7, 1.08], [12212, 29, 9, 1.0], [8635, 3, 7, 2.27], [788, 2, 7, 1.02], [8104, 1, 7, 1.79], [12979, 25, 12, 1.36], [76, 2, 7, 0.98], [1309, 1, 7, 0.89], [13928, 1, 7, 2.56], [10386, 2, 7, 2.99], [5165, 2, 438, 2.94], [7573, 1, 378, 5.94], [12721, 2, 328, 2.31], [996, 2, 262, 3.05], [22316, 3, 346, 2.25], [2423, 80, 203, 5.23], [11772, 1, 243, 4.59], [9372, 1, 264, 4.75], [3981, 3, 1938, 2.0], [6497, 1, 43, 1.8], [24257, 1, 154, 2.4], [11952, 1, 230, 2.13], [2438, 2, 682, 5.35], [12229, 2, 176, 1.55], [823, 1, 46, 2.11], [361, 2, 179, 2.63], [2424, 29, 37, 1.98], [8898, 3, 310, 6.0], [3975, 4, 528, 4.61], [346, 1, 161, 4.07], [1622, 1, 125, 1.8], [6496, 1, 46, 3.23], [192, 3, 1615, 2.95], [10407, 10, 1263, 5.88], [3900, 3, 51, 2.29], [5209, 3, 130, 2.37], [2805, 137, 192, 3.49], [9081, 3, 558, 2.09], [5946, 1, 135, 2.11], [33, 1, 129, 2.09], [11812, 1, 276, 1.76], [1703, 2, 179, 2.48], [7567, 3, 76, 4.21], [12764, 2, 853, 2.34], [10388, 2, 253, 4.07], [11490, 1, 119, 2.01], [37, 1, 129, 1.76], [8676, 2, 323, 6.0], [6097, 80, 76, 3.24], [972, 1, 114, 2.8], [202, 2, 84, 2.55], [220, 4, 55, 3.38], [1519, 3, 1884, 1.61], [22247, 2, 328, 3.36], [23611, 3, 401, 1.74], [161, 3, 837, 4.99], [35, 1, 129, 2.09], [38, 1, 129, 2.66], [13893, 2, 310, 4.97], [2104, 3, 384, 3.17], [11814, 1, 246, 2.01], [95, 3, 1304, 1.69], [83, 2, 62, 1.96], [4232, 80, 162, 4.36], [1895, 3, 340, 5.62], [11813, 1, 362, 2.27], [11116, 1, 92, 1.94], [12212, 29, 131, 2.09], [8104, 1, 236, 2.65], [12979, 25, 758, 2.21], [76, 2, 126, 1.84], [1309, 1, 59, 1.75], [13928, 1, 54, 3.42], [10386, 2, 253, 3.84]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 10, 2.95], [305, 2, 7, 1.23], [615, 2, 11, 0.67], [2778, 2, 11, 1.07], [6936, 2, 11, 3.69], [5493, 2, 9, 0.75], [205, 2, 9, 1.23], [130, 1, 7, 0.67], [616, 2, 9, 0.77], [88, 10, 14, 0.73], [144, 2, 7, 3.09], [8648, 2, 9, 2.71], [2049, 3, 21, 0.5], [11681, 2, 9, 3.84], [8915, 2, 8, 0.93], [589, 2, 8, 0.61], [326, 2, 9, 1.94], [7036, 1, 7, 2.85], [8650, 2, 9, 2.48], [2327, 2, 7, 0.98], [593, 2, 14, 1.04], [3893, 1, 7, 0.83], [141, 2, 9, 1.58], [206, 2, 7, 1.25], [7004, 1, 7, 1.81], [151, 1, 7, 0.77], [3891, 1, 7, 1.49], [248, 1, 7, 0.75], [143, 2, 7, 2.36], [3980, 4, 7, 2.37], [146, 2, 7, 2.31], [2050, 3, 7, 3.3], [990, 2, 7, 0.69], [2055, 3, 9, 3.46], [7885, 4, 7, 1.27], [7886, 4, 9, 1.0], [2054, 3, 7, 3.66], [12870, 1, 9, 3.96], [362, 2, 7, 1.58], [8672, 2, 14, 2.43], [10993, 2, 9, 1.56], [3975, 4, 7, 2.76], [2057, 3, 9, 3.27], [5165, 1, 7, 2.14], [21793, 1, 7, 2.17], [13028, 3, 7, 1.25], [7084, 3, 7, 2.06], [145, 2, 7, 2.5], [2991, 3, 7, 2.7], [523, 2, 7, 1.98], [75, 2, 7, 0.89], [7005, 1, 7, 1.39], [3982, 3, 21, 2.58], [3981, 3, 21, 2.52], [33, 1, 7, 3.41], [142, 2, 9, 1.25], [20927, 1, 9, 2.82], [2912, 1, 7, 2.23], [6158, 2, 14, 1.75], [7887, 4, 9, 1.98], [5165, 2, 8, 1.6], [82, 2, 7, 1.27], [417, 2, 7, 0.93], [35, 1, 7, 3.32], [22316, 3, 9, 1.23], [214, 3, 14, 0.74], [11953, 1, 9, 0.9], [6497, 1, 9, 0.77], [61, 3, 7, 2.71], [229, 1, 7, 2.89], [192, 3, 27, 3.13], [11772, 1, 7, 2.54], [950, 1, 7, 0.73], [996, 2, 9, 3.33], [7567, 3, 7, 2.7], [11769, 1, 7, 1.85], [5946, 1, 7, 1.02], [346, 3, 7, 1.97], [6496, 1, 7, 2.09], [4176, 4, 9, 3.49], [972, 3, 14, 3.54], [39, 1, 7, 1.79], [74, 1, 7, 4.19], [411, 2, 7, 1.73], [7573, 1, 11, 4.14], [8677, 3, 7, 2.82], [12721, 2, 7, 2.09], [37, 1, 7, 1.52], [4253, 1, 7, 1.41], [2436, 4, 7, 0.85], [22317, 3, 9, 1.42], [2912, 2, 8, 1.8], [2104, 3, 10, 2.87], [1413, 15, 7, 1.12], [12212, 29, 7, 0.94], [336, 15, 7, 1.53], [1277, 1, 7, 1.25], [201, 3, 7, 2.61], [345, 3, 7, 1.94], [11085, 2, 8, 3.16], [21269, 3, 7, 5.0], [13023, 3, 7, 2.44], [12271, 2, 7, 2.96], [823, 1, 7, 1.08], [3, 2, 7, 2.43], [8673, 2, 7, 4.12], [22247, 2, 7, 3.69], [38, 1, 7, 1.27], [8676, 2, 7, 1.94], [10631, 2, 11, 2.59], [9, 1, 7, 0.69], [2805, 137, 7, 3.07], [10408, 10, 8, 3.22], [3577, 25, 7, 1.02], [3048, 3, 7, 2.5], [10388, 2, 7, 1.16], [1414, 15, 7, 1.0], [10936, 2, 7, 2.38], [13928, 1, 7, 2.18], [9081, 3, 16, 1.41], [11812, 1, 7, 0.9], [346, 1, 7, 1.96], [20498, 3, 8, 1.25], [9491, 21, 16, 1.06], [13244, 1, 7, 0.87], [4076, 3, 7, 2.54], [161, 3, 8, 4.87], [11814, 1, 7, 0.92], [9372, 1, 7, 4.23], [10407, 10, 10, 3.57], [12764, 2, 12, 1.71], [491, 10, 8, 3.21], [1523, 1, 7, 0.85], [972, 1, 7, 1.51], [11089, 1, 7, 3.33], [3576, 25, 7, 1.44], [61, 3, 223, 3.52], [229, 1, 83, 3.7], [192, 3, 1452, 4.58], [11772, 1, 232, 3.35], [950, 1, 64, 1.54], [996, 2, 244, 5.2], [7567, 3, 75, 3.5], [11769, 1, 175, 2.66], [5946, 1, 128, 2.07], [346, 3, 618, 2.83], [6496, 1, 43, 2.9], [4176, 4, 492, 5.21], [39, 1, 114, 3.74], [74, 1, 203, 5.23], [411, 2, 111, 2.54], [7573, 1, 375, 4.95], [8677, 3, 295, 4.51], [12721, 2, 308, 2.89], [37, 1, 114, 3.22], [4253, 1, 177, 2.46], [2436, 4, 114, 1.9], [22317, 3, 323, 3.38], [2912, 2, 394, 2.61], [2104, 3, 355, 3.68], [12212, 29, 122, 1.99], [336, 15, 110, 3.22], [1277, 1, 196, 2.19], [201, 3, 304, 4.31], [345, 3, 304, 2.92], [11085, 2, 548, 5.15], [21269, 3, 299, 6.0], [13023, 3, 602, 3.48], [823, 1, 43, 1.89], [3, 2, 122, 3.8], [8673, 2, 301, 4.93], [22247, 2, 292, 5.1], [38, 1, 120, 2.08], [8676, 2, 294, 2.99], [9, 1, 35, 1.74], [2805, 137, 186, 3.88], [10408, 10, 824, 4.03], [3577, 25, 95, 1.83], [3048, 3, 277, 3.72], [10388, 2, 237, 1.97], [1414, 15, 24, 2.03], [10936, 2, 144, 3.19], [13928, 1, 50, 2.99], [9081, 3, 520, 2.21], [11812, 1, 258, 1.7], [346, 1, 154, 3.01], [20498, 3, 631, 2.07], [9491, 21, 2394, 1.89], [13244, 1, 54, 1.68], [4076, 3, 205, 3.35], [161, 3, 730, 5.94], [11814, 1, 243, 1.73], [9372, 1, 247, 5.04], [10407, 10, 1232, 4.39], [12764, 2, 758, 3.42], [491, 10, 463, 4.01], [1523, 1, 51, 1.66], [972, 1, 100, 2.55], [11089, 1, 183, 4.14], [3576, 25, 109, 2.25]]</t>
-  </si>
-  <si>
-    <t>[[141, 2, 9, 0.88], [362, 2, 7, 1.46], [8650, 2, 7, 2.38], [5491, 2, 14, 0.77], [361, 2, 7, 0.77], [5493, 2, 7, 1.28], [589, 2, 9, 1.2], [8672, 2, 18, 2.15], [11685, 2, 9, 2.81], [417, 2, 7, 0.71], [6935, 2, 28, 3.99], [205, 2, 7, 0.69], [11681, 2, 13, 5.0], [11838, 2, 9, 1.27], [12721, 2, 14, 1.48], [248, 1, 7, 0.98], [11837, 2, 7, 1.12], [142, 2, 7, 0.73], [6936, 2, 9, 2.64], [2778, 2, 11, 1.59], [1446, 2, 11, 0.61], [8676, 2, 7, 1.7], [615, 2, 7, 1.42], [21793, 1, 8, 4.09], [305, 2, 9, 1.94], [593, 2, 10, 0.66], [22247, 2, 7, 1.93], [11835, 2, 7, 0.92], [616, 2, 7, 1.31], [411, 2, 7, 0.83], [990, 2, 7, 0.73], [8675, 2, 11, 2.44], [10574, 3, 9, 2.5], [145, 2, 7, 2.25], [1429, 2, 7, 0.9], [6158, 2, 10, 2.15], [10149, 3, 21, 1.49], [3495, 3, 26, 2.15], [2050, 3, 8, 1.22], [146, 2, 7, 1.72], [88, 10, 20, 3.07], [2054, 3, 10, 2.04], [75, 2, 7, 3.23], [10993, 2, 9, 1.25], [7885, 4, 11, 1.67], [144, 2, 7, 2.25], [7705, 2, 7, 2.74], [2424, 29, 7, 3.81], [346, 3, 10, 2.81], [2423, 80, 7, 3.0], [2859, 15, 7, 1.4], [7704, 2, 7, 2.74], [61, 3, 7, 0.69], [2423, 29, 7, 3.22], [9126, 1, 7, 2.18], [335, 3, 17, 0.93], [5165, 1, 7, 1.98], [2424, 80, 7, 3.81], [13028, 3, 7, 1.96], [201, 3, 9, 2.41], [346, 1, 7, 2.81], [214, 3, 15, 3.57], [60, 3, 8, 3.51], [1519, 3, 16, 0.67], [13023, 3, 8, 2.65], [308, 1, 9, 2.95], [1414, 15, 7, 0.81], [13034, 3, 10, 2.45], [2703, 3, 7, 3.36], [345, 3, 7, 0.94], [6494, 1, 7, 0.89], [7004, 1, 7, 1.27], [410, 1, 7, 1.0], [11770, 1, 7, 3.5], [7706, 2, 11, 2.62], [432, 3, 7, 2.39], [5208, 3, 11, 1.15], [3430, 15, 7, 1.66], [6952, 1, 7, 1.41], [13928, 1, 7, 2.28], [12373, 1, 11, 3.51], [20927, 1, 7, 2.02], [11954, 1, 7, 0.85], [94, 4, 7, 4.04], [1886, 2, 7, 0.85], [2331, 1, 7, 3.16], [3893, 1, 7, 1.78], [3891, 1, 7, 1.78], [114, 3, 7, 1.1], [11811, 1, 7, 1.93], [105, 3, 7, 0.92], [7886, 4, 9, 1.14], [3981, 3, 13, 0.91], [1274, 1, 7, 1.6], [952, 4, 7, 3.68], [13033, 3, 7, 1.39], [944, 15, 7, 0.71], [9690, 1, 7, 2.13], [11089, 1, 7, 2.23], [3, 2, 7, 3.85], [1490, 1, 7, 0.85], [1309, 1, 7, 1.41], [5946, 1, 7, 1.78], [5584, 3, 7, 2.72], [8898, 3, 7, 1.42], [5812, 3, 7, 2.91], [5733, 2, 8, 2.41], [7708, 2, 7, 2.62], [10407, 10, 10, 3.72], [10410, 10, 10, 3.76], [95, 3, 13, 4.5], [3028, 3, 7, 0.85], [3478, 2, 7, 1.93], [8274, 3, 7, 2.79], [7703, 2, 7, 2.62], [9342, 2, 7, 0.93], [10398, 2, 7, 2.62], [20555, 2, 7, 1.5], [3889, 1, 7, 1.78], [21003, 2, 7, 3.61], [13258, 29, 13, 3.65], [22558, 3, 7, 4.38], [9082, 3, 23, 2.83], [3980, 4, 7, 2.76], [10406, 10, 12, 3.4], [6497, 1, 7, 3.33], [20969, 3, 7, 1.66], [1339, 3, 19, 1.0], [963, 3, 7, 2.7], [192, 3, 21, 1.64], [5165, 2, 8, 1.99], [20196, 2, 7, 3.8], [10516, 3, 7, 3.73], [11603, 2, 7, 2.64], [2703, 3, 362, 4.32], [345, 3, 358, 1.9], [6494, 1, 62, 1.85], [7004, 1, 89, 2.23], [410, 1, 125, 1.96], [11770, 1, 245, 4.45], [7706, 2, 199, 4.84], [432, 3, 352, 3.35], [5208, 3, 598, 2.1], [3430, 15, 82, 2.62], [6952, 1, 213, 2.37], [13928, 1, 56, 3.24], [12373, 1, 636, 4.47], [20927, 1, 94, 2.98], [11954, 1, 238, 1.81], [94, 4, 137, 5.0], [1886, 2, 187, 1.81], [2331, 1, 138, 4.12], [3893, 1, 146, 2.73], [3891, 1, 146, 2.73], [114, 3, 276, 3.23], [11811, 1, 536, 2.9], [105, 3, 291, 1.88], [7886, 4, 57, 2.53], [3981, 3, 1999, 1.89], [1274, 1, 98, 2.56], [952, 4, 87, 4.63], [13033, 3, 667, 2.57], [944, 15, 52, 1.67], [9690, 1, 89, 3.09], [11089, 1, 203, 3.19], [3, 2, 140, 4.81], [1490, 1, 61, 1.81], [1309, 1, 61, 2.37], [5946, 1, 146, 2.73], [5584, 3, 272, 3.68], [8898, 3, 331, 2.37], [5812, 3, 703, 3.88], [5733, 2, 47, 3.33], [7708, 2, 210, 3.57], [10407, 10, 1385, 4.67], [10410, 10, 1385, 4.71], [95, 3, 1176, 5.48], [3028, 3, 196, 1.81], [3478, 2, 90, 2.89], [7703, 2, 210, 3.57], [9342, 2, 553, 1.9], [10398, 2, 173, 3.58], [20555, 2, 68, 2.46], [3889, 1, 146, 2.73], [21003, 2, 337, 4.57], [13258, 29, 46, 4.61], [22558, 3, 557, 5.34], [9082, 3, 2915, 3.83], [3980, 4, 571, 3.72], [10406, 10, 2088, 4.36], [6497, 1, 42, 4.28], [20969, 3, 700, 2.62], [1339, 3, 2058, 1.94], [963, 3, 473, 3.66], [192, 3, 1686, 2.6], [5165, 2, 451, 2.94], [20196, 2, 337, 4.75], [10516, 3, 679, 4.68], [11603, 2, 126, 3.5]]</t>
-  </si>
-  <si>
-    <t>[[2778, 2, 21, 1.08], [6936, 2, 9, 2.9], [8672, 2, 18, 2.18], [305, 2, 9, 1.46], [615, 2, 11, 1.23], [145, 2, 7, 2.25], [12721, 2, 11, 1.74], [130, 1, 7, 0.69], [2327, 2, 7, 1.82], [361, 2, 7, 0.77], [2328, 2, 7, 2.1], [146, 2, 9, 2.15], [8675, 2, 8, 1.61], [11681, 2, 9, 2.3], [141, 2, 7, 0.77], [362, 2, 7, 1.58], [205, 2, 9, 0.99], [5491, 2, 14, 0.77], [8673, 2, 14, 2.44], [8676, 2, 9, 1.6], [144, 2, 9, 2.32], [8650, 2, 9, 4.63], [417, 2, 7, 0.77], [11837, 2, 7, 1.06], [3, 2, 7, 2.41], [6097, 80, 9, 4.67], [2423, 29, 7, 2.93], [6497, 1, 9, 0.6], [6097, 29, 9, 4.96], [11836, 2, 9, 1.44], [990, 2, 7, 1.0], [2424, 29, 7, 2.34], [593, 2, 8, 3.23], [6098, 80, 7, 4.37], [523, 2, 7, 1.46], [11739, 2, 7, 1.17], [944, 15, 7, 0.77], [88, 10, 19, 2.15], [10993, 2, 7, 1.0], [13260, 29, 7, 2.28], [8915, 2, 7, 1.5], [326, 2, 7, 0.96], [75, 2, 7, 3.0], [1413, 15, 7, 0.96], [10574, 3, 10, 2.38], [335, 3, 17, 3.44], [411, 2, 7, 1.77], [1339, 1, 7, 0.83], [1050, 2, 7, 0.73], [947, 15, 7, 0.98], [1339, 3, 21, 0.65], [151, 1, 7, 1.25], [6496, 1, 7, 2.52], [2859, 15, 7, 1.7], [7704, 2, 9, 4.35], [346, 1, 7, 0.83], [214, 3, 15, 3.57], [13258, 29, 13, 2.82], [345, 3, 7, 0.96], [10149, 3, 21, 1.75], [1490, 1, 7, 4.96], [346, 3, 8, 0.82], [1243, 2, 7, 2.39], [7004, 1, 7, 1.58], [11738, 2, 7, 1.81], [201, 3, 7, 3.31], [22558, 3, 46, 3.38], [432, 3, 7, 2.21], [2438, 1, 7, 1.99], [7705, 2, 9, 4.35], [5208, 3, 11, 1.3], [2912, 1, 7, 1.83], [229, 1, 7, 2.59], [61, 3, 7, 0.85], [963, 3, 7, 0.76], [10407, 10, 10, 3.72], [7706, 2, 9, 4.35], [2331, 1, 7, 2.02], [21793, 1, 8, 5.0], [13928, 1, 7, 2.28], [12229, 2, 7, 1.12], [3478, 2, 7, 1.93], [1548, 1, 7, 2.1], [2703, 3, 7, 4.45], [11844, 2, 7, 1.23], [13258, 25, 7, 2.31], [11490, 1, 7, 0.87], [114, 3, 7, 1.05], [7036, 1, 7, 0.87], [8938, 2, 7, 0.83], [9126, 1, 7, 2.29], [11687, 2, 7, 1.29], [10408, 10, 10, 3.27], [956, 2, 7, 1.35], [94, 4, 7, 4.04], [1886, 2, 7, 0.85], [410, 1, 7, 1.0], [11159, 1, 14, 1.67], [7708, 2, 7, 3.7], [2438, 2, 8, 2.12], [11690, 2, 7, 1.01], [9065, 2, 7, 1.04], [12870, 1, 7, 1.89], [9760, 29, 7, 1.77], [11161, 1, 10, 3.62], [11689, 2, 7, 1.27], [5976, 1, 7, 2.23], [7005, 1, 7, 2.04], [21781, 2, 7, 0.9], [1274, 1, 7, 3.81], [2805, 137, 10, 3.39], [20927, 1, 7, 1.25], [12373, 1, 11, 3.51], [2991, 3, 7, 4.76], [1699, 3, 7, 2.27], [5584, 3, 7, 2.72], [9209, 29, 7, 2.36], [3495, 3, 21, 2.56], [9690, 1, 7, 2.13], [7007, 1, 7, 2.46], [9239, 29, 7, 0.92], [11811, 1, 7, 1.93], [8600, 1, 7, 1.84], [9239, 25, 7, 0.92], [247, 1, 7, 2.96], [5769, 3, 10, 0.93], [9491, 21, 16, 3.09], [5076, 1, 7, 3.75], [13198, 29, 7, 2.55], [12764, 2, 10, 1.43], [9372, 1, 7, 4.36], [5869, 1, 7, 4.08], [7702, 2, 45, 2.47], [95, 3, 13, 0.77], [5208, 3, 669, 2.26], [2912, 1, 57, 2.79], [229, 1, 97, 3.55], [61, 3, 251, 1.81], [963, 3, 486, 1.72], [10407, 10, 1385, 4.67], [7706, 2, 176, 5.37], [2331, 1, 139, 2.98], [21793, 1, 259, 6.0], [13928, 1, 56, 3.24], [12229, 2, 171, 3.15], [3478, 2, 85, 2.89], [1548, 1, 111, 3.28], [2703, 3, 327, 5.63], [11844, 2, 327, 2.2], [13258, 25, 93, 3.26], [11490, 1, 130, 1.83], [114, 3, 290, 2.02], [7036, 1, 151, 1.82], [8938, 2, 229, 1.79], [9126, 1, 83, 3.25], [11687, 2, 359, 2.25], [10408, 10, 909, 4.23], [956, 2, 122, 2.31], [94, 4, 137, 5.0], [1886, 2, 187, 1.81], [410, 1, 125, 1.96], [11159, 1, 583, 2.63], [7708, 2, 198, 4.66], [2438, 2, 740, 3.07], [11690, 2, 359, 1.96], [9065, 2, 359, 1.99], [12870, 1, 165, 2.84], [9760, 29, 85, 2.73], [11161, 1, 585, 4.57], [11689, 2, 359, 2.23], [5976, 1, 184, 3.19], [7005, 1, 89, 3.0], [21781, 2, 124, 1.86], [1274, 1, 95, 4.77], [2805, 137, 208, 4.36], [20927, 1, 94, 2.21], [12373, 1, 636, 4.47], [2991, 3, 185, 5.72], [1699, 3, 248, 3.23], [5584, 3, 272, 3.68], [9209, 29, 39, 3.32], [3495, 3, 1147, 3.51], [9690, 1, 89, 3.09], [7007, 1, 31, 3.18], [9239, 29, 34, 1.88], [11811, 1, 536, 2.9], [8600, 1, 172, 2.8], [9239, 25, 103, 1.88], [247, 1, 103, 3.92], [5769, 3, 1242, 2.13], [9491, 21, 2455, 4.07], [5076, 1, 151, 4.71], [13198, 29, 73, 3.51], [12764, 2, 836, 2.87], [9372, 1, 271, 5.32], [5869, 1, 243, 5.04], [7702, 2, 209, 3.43], [95, 3, 1345, 1.73]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 15, 2.15], [141, 2, 9, 0.92], [2778, 2, 16, 1.69], [362, 2, 7, 1.44], [361, 2, 7, 1.6], [130, 1, 7, 0.69], [6935, 2, 19, 5.0], [12721, 2, 21, 3.52], [8676, 2, 7, 1.6], [2049, 3, 21, 0.73], [417, 2, 7, 1.6], [3, 2, 7, 2.47], [22247, 2, 7, 1.83], [6936, 2, 9, 1.65], [523, 2, 7, 1.52], [305, 2, 7, 1.12], [8650, 2, 9, 3.19], [2328, 2, 9, 2.57], [11739, 2, 7, 1.31], [8648, 2, 7, 3.25], [2776, 2, 7, 2.29], [2327, 2, 7, 1.48], [616, 2, 9, 2.57], [411, 2, 7, 1.48], [8674, 2, 7, 1.54], [2423, 29, 7, 2.76], [589, 2, 7, 1.94], [6497, 1, 9, 1.1], [2805, 137, 10, 3.93], [11835, 2, 7, 1.19], [6097, 80, 9, 4.96], [146, 2, 7, 2.25], [326, 2, 7, 1.48], [6097, 29, 7, 1.85], [583, 2, 7, 1.39], [2423, 80, 7, 2.71], [10149, 3, 21, 3.22], [145, 2, 7, 2.25], [11836, 2, 7, 1.29], [144, 2, 7, 2.25], [75, 2, 7, 3.0], [10574, 3, 10, 2.88], [6496, 1, 7, 2.52], [308, 1, 13, 1.91], [1413, 15, 7, 0.83], [2054, 3, 7, 2.44], [2422, 29, 7, 4.27], [1243, 2, 7, 2.04], [21793, 1, 8, 5.0], [1886, 2, 7, 0.85], [8915, 2, 7, 1.5], [944, 15, 7, 0.77], [247, 1, 7, 2.83], [1490, 1, 7, 4.96], [2859, 15, 7, 1.4], [335, 3, 17, 2.53], [1414, 15, 7, 0.92], [201, 3, 9, 0.79], [13928, 1, 7, 2.49], [3478, 2, 7, 1.93], [6158, 2, 11, 2.4], [7084, 3, 7, 1.83], [3934, 5, 12, 2.69], [11489, 1, 7, 0.79], [12526, 2, 7, 3.02], [1703, 2, 7, 1.67], [5812, 3, 7, 3.84], [11767, 1, 7, 2.2], [61, 3, 7, 0.85], [94, 4, 7, 2.68], [186, 3, 12, 1.06], [214, 3, 15, 3.57], [1519, 3, 15, 0.72], [1050, 2, 7, 0.71], [9491, 21, 16, 2.74], [11490, 1, 7, 0.67], [1309, 1, 7, 1.41], [2821, 3, 16, 0.91], [10398, 2, 7, 1.37], [5813, 3, 7, 3.84], [192, 3, 21, 3.71], [8898, 3, 7, 1.18], [8599, 1, 7, 1.36], [5811, 3, 8, 4.0], [229, 1, 7, 2.74], [11771, 1, 7, 2.99], [1699, 3, 7, 2.95], [2438, 2, 8, 2.12], [2991, 3, 7, 4.73], [3495, 3, 21, 2.56], [11769, 1, 7, 2.2], [8943, 3, 7, 0.75], [11811, 1, 7, 1.93], [1339, 3, 21, 0.65], [13928, 2, 7, 2.28], [12764, 2, 8, 1.16], [19687, 1, 7, 2.33], [7036, 1, 7, 0.87], [346, 3, 8, 0.74], [13260, 29, 7, 2.46], [22573, 2, 7, 1.91], [10124, 1, 7, 4.18], [9690, 1, 7, 2.13], [5584, 3, 7, 5.0], [3334, 5, 7, 3.93], [18964, 1, 7, 2.18], [7004, 1, 7, 1.44], [1277, 1, 7, 0.92], [2438, 1, 7, 1.99], [20927, 1, 7, 1.18], [1523, 1, 7, 2.51], [4001, 3, 17, 2.0], [11886, 2, 7, 1.44], [1701, 2, 7, 0.96], [45, 2, 7, 4.64], [11678, 1, 7, 2.86], [21269, 3, 7, 4.2], [8286, 2, 8, 1.09], [9373, 5, 7, 5.0], [10181, 26, 8, 0.81], [23031, 3, 7, 3.25], [3984, 3, 8, 1.07], [10516, 3, 7, 2.5], [11677, 1, 7, 2.95], [346, 1, 7, 0.83], [1339, 1, 7, 0.92], [3979, 3, 8, 1.56], [19924, 2, 7, 0.79], [23032, 3, 7, 2.86], [9069, 1, 7, 2.13], [9065, 2, 7, 1.04], [5976, 1, 7, 2.23], [8285, 2, 8, 0.85], [7005, 1, 7, 2.33], [11767, 1, 192, 3.15], [61, 3, 251, 1.81], [94, 4, 141, 3.64], [186, 3, 790, 2.01], [1519, 3, 1943, 1.67], [9491, 21, 2591, 3.7], [11490, 1, 130, 1.63], [1309, 1, 61, 2.37], [2821, 3, 1510, 2.09], [10398, 2, 175, 2.33], [5813, 3, 700, 4.8], [8898, 3, 332, 2.14], [8599, 1, 173, 2.31], [5811, 3, 700, 4.96], [229, 1, 96, 3.7], [11771, 1, 246, 3.94], [1699, 3, 247, 3.91], [2438, 2, 740, 3.07], [2991, 3, 179, 6.0], [3495, 3, 1147, 3.51], [11769, 1, 192, 3.15], [8943, 3, 457, 1.7], [11811, 1, 536, 2.9], [1339, 3, 1955, 1.88], [13928, 2, 28, 3.24], [12764, 2, 880, 2.11], [19687, 1, 36, 3.29], [7036, 1, 151, 1.82], [346, 3, 736, 1.71], [13260, 29, 81, 3.64], [22573, 2, 84, 2.87], [10124, 1, 119, 5.14], [9690, 1, 89, 3.09], [5584, 3, 258, 6.0], [3334, 5, 212, 4.89], [18964, 1, 80, 3.14], [7004, 1, 94, 2.4], [1277, 1, 233, 1.88], [2438, 1, 62, 2.95], [20927, 1, 94, 2.14], [1523, 1, 56, 3.47], [4001, 3, 958, 2.96], [11886, 2, 229, 2.4], [1701, 2, 201, 1.92], [45, 2, 125, 5.6], [11678, 1, 532, 3.82], [21269, 3, 339, 5.16], [8286, 2, 566, 2.04], [9373, 5, 103, 6.0], [10181, 26, 165, 1.77], [23031, 3, 486, 4.21], [3984, 3, 1971, 2.03], [10516, 3, 693, 3.45], [11677, 1, 530, 3.91], [346, 1, 184, 1.79], [1339, 1, 86, 1.88], [3979, 3, 958, 2.52], [19924, 2, 77, 1.75], [23032, 3, 614, 3.82], [9069, 1, 142, 3.09], [9065, 2, 359, 1.99], [5976, 1, 184, 3.19], [8285, 2, 573, 1.8], [7005, 1, 42, 3.14]]</t>
-  </si>
-  <si>
-    <t>[[305, 2, 7, 0.88], [2328, 2, 14, 1.85], [130, 1, 7, 0.69], [8650, 2, 9, 2.32], [2778, 2, 16, 1.61], [5491, 2, 9, 0.74], [8672, 2, 15, 1.94], [143, 2, 7, 0.93], [362, 2, 7, 1.05], [145, 2, 7, 1.91], [6936, 2, 9, 3.12], [5493, 2, 9, 2.06], [361, 2, 7, 1.86], [417, 2, 7, 1.86], [11681, 2, 9, 2.3], [205, 2, 7, 1.08], [589, 2, 9, 0.66], [75, 2, 9, 1.92], [11737, 2, 7, 1.75], [146, 2, 7, 1.1], [523, 2, 7, 1.21], [12721, 2, 13, 3.3], [8853, 2, 7, 3.7], [8673, 2, 27, 2.2], [326, 2, 9, 1.68], [11835, 2, 7, 0.69], [308, 1, 11, 3.94], [8915, 2, 7, 2.76], [144, 2, 7, 1.91], [1005, 2, 7, 2.48], [8675, 2, 8, 2.64], [88, 10, 26, 1.79], [434, 2, 9, 1.04], [11739, 2, 7, 1.5], [142, 2, 7, 1.86], [8676, 2, 7, 4.16], [2424, 29, 7, 2.34], [6158, 2, 12, 1.79], [7704, 2, 9, 3.71], [2423, 29, 7, 2.29], [11738, 2, 7, 1.52], [11836, 2, 11, 1.36], [2424, 80, 7, 2.57], [1413, 15, 7, 1.24], [7705, 2, 7, 4.08], [2423, 80, 7, 2.23], [944, 15, 7, 1.02], [3, 2, 9, 2.19], [3478, 2, 7, 2.95], [7004, 1, 7, 2.58], [1414, 15, 7, 0.81], [2859, 15, 7, 2.81], [74, 1, 7, 2.15], [10149, 3, 21, 1.49], [6497, 1, 7, 0.87], [3429, 15, 7, 0.79], [10993, 2, 9, 1.25], [13928, 1, 7, 2.49], [346, 1, 7, 2.81], [18964, 1, 7, 2.18], [11919, 1, 7, 1.14], [346, 3, 8, 3.06], [60, 3, 8, 3.51], [13260, 29, 7, 2.5], [7036, 1, 7, 3.14], [94, 4, 7, 4.04], [1339, 3, 21, 0.65], [6952, 1, 7, 3.06], [3893, 1, 7, 2.6], [2991, 3, 7, 4.18], [13034, 3, 11, 2.28], [411, 2, 7, 1.94], [11089, 1, 7, 2.23], [1050, 2, 7, 0.66], [3891, 1, 7, 2.6], [1339, 1, 7, 0.83], [14037, 3, 9, 1.91], [7707, 2, 7, 2.41], [21793, 1, 8, 4.09], [563, 2, 7, 1.19], [8274, 3, 7, 1.6], [6630, 3, 7, 3.55], [3889, 1, 7, 2.6], [2912, 1, 9, 1.48], [1243, 2, 7, 2.33], [1490, 1, 7, 4.96], [7708, 2, 7, 3.01], [192, 3, 26, 4.24], [11581, 29, 7, 1.89], [9126, 1, 7, 2.41], [7886, 4, 9, 0.87], [13023, 3, 8, 0.8], [3495, 3, 21, 2.56], [5208, 3, 11, 1.4], [5940, 3, 7, 2.56], [11490, 1, 7, 0.92], [1309, 1, 7, 1.41], [1049, 2, 7, 0.69], [229, 1, 7, 2.59], [5165, 1, 7, 1.67], [22558, 3, 7, 4.38], [12229, 2, 7, 1.12], [13033, 3, 7, 1.68], [2331, 1, 7, 3.54], [201, 3, 7, 1.16], [2805, 137, 10, 4.22], [247, 1, 7, 0.97], [83, 2, 7, 1.44], [1274, 1, 7, 2.25], [6496, 1, 7, 2.98], [332, 2, 7, 1.19], [214, 3, 15, 3.57], [202, 2, 7, 1.19], [951, 4, 7, 3.07], [8898, 3, 7, 1.42], [20555, 2, 7, 1.12], [1703, 2, 7, 5.0], [9690, 1, 7, 2.13], [11770, 1, 7, 3.89], [335, 3, 21, 2.53], [942, 3, 7, 2.26], [7005, 1, 7, 1.94], [5812, 3, 7, 2.49], [114, 3, 7, 3.82], [21269, 3, 7, 5.0], [3934, 5, 12, 2.69], [8635, 3, 7, 1.6], [9827, 3, 7, 0.75], [10406, 10, 12, 3.64], [4940, 1, 7, 0.81], [186, 3, 12, 2.32], [1886, 2, 9, 0.85], [10527, 3, 13, 2.94], [10411, 10, 10, 3.51], [7885, 4, 7, 1.08], [9491, 21, 16, 2.74], [6952, 1, 213, 5.34], [3893, 1, 145, 3.56], [2991, 3, 179, 6.0], [13034, 3, 665, 4.56], [411, 2, 121, 3.53], [11089, 1, 203, 3.19], [3891, 1, 145, 3.56], [1339, 1, 81, 2.01], [7707, 2, 198, 3.72], [21793, 1, 282, 5.05], [563, 2, 82, 2.37], [6630, 3, 111, 4.51], [3889, 1, 145, 3.56], [2912, 1, 13, 2.77], [1243, 2, 111, 4.11], [1490, 1, 58, 5.92], [7708, 2, 209, 3.97], [192, 3, 1582, 5.48], [11581, 29, 71, 2.85], [9126, 1, 83, 3.37], [7886, 4, 162, 2.05], [13023, 3, 714, 1.76], [3495, 3, 1147, 3.51], [5208, 3, 149, 2.33], [5940, 3, 282, 3.52], [11490, 1, 130, 1.88], [1309, 1, 61, 2.37], [229, 1, 97, 3.55], [5165, 1, 57, 2.63], [22558, 3, 557, 5.34], [12229, 2, 171, 3.15], [13033, 3, 700, 2.64], [2331, 1, 138, 4.5], [201, 3, 334, 2.34], [2805, 137, 211, 5.18], [247, 1, 104, 1.92], [83, 2, 60, 2.4], [1274, 1, 97, 3.21], [6496, 1, 44, 4.35], [332, 2, 82, 2.37], [214, 3, 253, 4.28], [202, 2, 82, 2.37], [951, 4, 111, 4.03], [8898, 3, 331, 2.37], [20555, 2, 68, 2.08], [1703, 2, 188, 6.0], [9690, 1, 89, 3.09], [11770, 1, 249, 4.85], [942, 3, 351, 3.22], [7005, 1, 94, 2.9], [5812, 3, 661, 4.78], [114, 3, 95, 4.64], [21269, 3, 332, 6.0], [3934, 5, 619, 3.65], [9827, 3, 98, 1.93], [10406, 10, 1983, 4.6], [4940, 1, 144, 1.77], [186, 3, 782, 3.28], [1886, 2, 177, 2.03], [10527, 3, 1029, 3.91], [10411, 10, 909, 4.47], [7885, 4, 74, 1.89], [9491, 21, 2591, 3.7]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 11, 3.36], [141, 2, 7, 1.09], [589, 2, 12, 0.75], [2327, 2, 9, 1.37], [2778, 2, 14, 1.33], [11681, 2, 30, 4.17], [6936, 2, 13, 3.9], [362, 2, 7, 1.69], [2328, 2, 9, 1.85], [205, 2, 7, 0.9], [130, 1, 7, 0.69], [2775, 2, 7, 1.33], [2049, 3, 10, 0.82], [8649, 2, 7, 2.82], [2776, 2, 7, 1.46], [361, 2, 7, 1.36], [143, 2, 7, 1.52], [593, 2, 9, 1.21], [206, 2, 7, 2.29], [5493, 2, 7, 1.16], [1429, 2, 7, 3.54], [523, 2, 7, 1.49], [7004, 1, 7, 1.02], [21793, 1, 7, 3.22], [413, 1, 7, 1.56], [12350, 1, 7, 4.69], [1124, 2, 7, 1.73], [7036, 1, 7, 2.95], [5165, 1, 7, 2.31], [12353, 1, 7, 4.69], [12349, 1, 9, 3.94], [145, 2, 7, 2.25], [434, 2, 7, 1.26], [248, 1, 7, 0.92], [201, 3, 11, 3.77], [6952, 1, 11, 3.9], [6097, 80, 7, 5.0], [10993, 2, 7, 1.66], [345, 3, 9, 1.93], [146, 2, 7, 2.25], [144, 2, 7, 1.72], [7084, 3, 7, 3.68], [11770, 1, 9, 0.74], [2050, 3, 7, 2.76], [12352, 1, 7, 4.69], [3891, 1, 7, 1.46], [2912, 1, 7, 2.23], [7005, 1, 7, 1.1], [998, 2, 7, 1.56], [997, 2, 7, 1.66], [432, 3, 7, 2.04], [3893, 1, 7, 1.42], [5165, 2, 12, 1.23], [12870, 1, 7, 2.29], [9372, 1, 7, 3.52], [6097, 29, 7, 5.0], [2424, 80, 7, 1.71], [20927, 1, 7, 0.98], [11772, 1, 7, 3.25], [6098, 80, 9, 4.06], [7885, 4, 7, 1.67], [10149, 3, 24, 1.73], [11089, 1, 7, 2.01], [3334, 5, 7, 2.91], [10574, 3, 8, 0.98], [12351, 1, 7, 2.23], [1492, 1, 7, 1.33], [4032, 29, 7, 1.54], [346, 3, 7, 3.55], [3889, 1, 7, 2.23], [1700, 2, 7, 1.23], [12304, 1, 7, 4.18], [1519, 3, 20, 0.94], [3576, 25, 7, 3.39], [13028, 3, 7, 4.42], [2912, 2, 8, 2.37], [214, 3, 15, 1.34], [1490, 1, 7, 1.39], [13034, 3, 7, 4.12], [972, 3, 7, 1.94], [229, 1, 7, 4.24], [11583, 29, 7, 0.94], [161, 3, 8, 4.24], [11426, 25, 7, 0.81], [5151, 2, 7, 0.87], [346, 1, 7, 3.55], [2331, 1, 7, 1.09], [8120, 3, 7, 3.15], [11490, 1, 7, 1.25], [995, 2, 7, 2.23], [3478, 2, 7, 1.19], [5076, 1, 7, 0.99], [5812, 3, 10, 4.4], [13893, 2, 7, 4.11], [10, 2, 7, 0.75], [9289, 29, 7, 2.08], [1309, 1, 7, 0.69], [410, 1, 7, 1.61], [12764, 2, 9, 1.46], [13023, 3, 10, 2.28], [2160, 68, 7, 1.96], [3575, 25, 7, 1.83], [2805, 137, 7, 2.91], [11404, 2, 7, 1.08], [3577, 25, 7, 1.0], [13280, 1, 7, 2.62], [75, 2, 7, 0.71], [2438, 2, 8, 2.12], [957, 2, 7, 2.0], [11814, 1, 7, 1.1], [11813, 1, 7, 2.91], [9069, 1, 7, 1.21], [9971, 2, 7, 2.19], [9967, 2, 7, 1.14], [11150, 2, 8, 0.79], [192, 3, 13, 3.54], [8943, 3, 7, 0.75], [9491, 21, 13, 2.59], [8283, 2, 8, 3.44], [5584, 3, 7, 5.0], [22317, 3, 7, 0.85], [24257, 1, 7, 2.78], [13249, 29, 7, 2.16], [9964, 2, 7, 3.08], [21697, 3, 7, 0.87], [9081, 3, 20, 1.8], [4586, 10, 17, 1.5], [105, 3, 7, 1.6], [4076, 3, 7, 2.73], [10609, 1, 7, 1.79], [9965, 2, 7, 2.19], [1413, 15, 7, 3.17], [335, 3, 15, 3.16], [10407, 10, 12, 3.8], [346, 3, 703, 4.43], [3889, 1, 146, 3.11], [1700, 2, 84, 2.11], [12304, 1, 125, 5.06], [1519, 3, 1827, 2.61], [3576, 25, 112, 4.27], [13028, 3, 164, 5.3], [2912, 2, 445, 3.24], [214, 3, 761, 2.22], [1490, 1, 59, 2.27], [13034, 3, 665, 5.21], [972, 3, 665, 2.81], [229, 1, 95, 5.12], [11583, 29, 66, 1.82], [161, 3, 840, 5.12], [11426, 25, 133, 1.91], [5151, 2, 27, 1.97], [346, 1, 176, 4.43], [2331, 1, 137, 1.97], [8120, 3, 277, 4.02], [11490, 1, 92, 2.35], [995, 2, 287, 3.11], [3478, 2, 89, 2.07], [5076, 1, 152, 1.87], [5812, 3, 658, 5.76], [13893, 2, 316, 4.99], [10, 2, 25, 1.24], [9289, 29, 70, 2.96], [1309, 1, 61, 1.57], [410, 1, 25, 2.1], [12764, 2, 871, 2.34], [13023, 3, 665, 4.16], [2160, 68, 155, 2.84], [3575, 25, 118, 2.71], [2805, 137, 212, 3.79], [11404, 2, 115, 2.75], [3577, 25, 98, 2.1], [13280, 1, 375, 3.5], [75, 2, 163, 1.81], [2438, 2, 733, 3.01], [957, 2, 25, 3.03], [11814, 1, 265, 1.98], [11813, 1, 367, 3.79], [9069, 1, 137, 2.31], [9971, 2, 317, 3.07], [9967, 2, 317, 2.02], [11150, 2, 414, 1.67], [192, 3, 1512, 4.6], [8943, 3, 136, 1.4], [9491, 21, 2566, 3.48], [8283, 2, 522, 4.32], [5584, 3, 266, 6.0], [22317, 3, 379, 1.73], [24257, 1, 45, 3.68], [13249, 29, 75, 3.04], [9964, 2, 317, 3.95], [21697, 3, 203, 1.97], [9081, 3, 565, 2.68], [4586, 10, 1732, 2.4], [105, 3, 286, 2.48], [4076, 3, 235, 3.61], [10609, 1, 335, 2.67], [9965, 2, 317, 3.07], [1413, 15, 92, 4.02], [335, 3, 304, 3.65], [10407, 10, 1372, 4.67]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 15, 2.66], [305, 2, 7, 1.49], [6935, 2, 23, 4.55], [141, 2, 7, 2.37], [2049, 3, 16, 0.52], [205, 2, 9, 0.71], [12721, 2, 10, 1.78], [130, 1, 7, 0.98], [144, 2, 7, 0.94], [589, 2, 15, 0.55], [362, 2, 9, 2.65], [146, 2, 7, 1.67], [145, 2, 7, 0.91], [593, 2, 11, 2.33], [990, 2, 7, 1.04], [1777, 1, 7, 2.22], [8915, 2, 10, 0.95], [2328, 2, 7, 1.01], [8648, 2, 9, 2.52], [6936, 2, 10, 2.57], [8650, 2, 7, 3.41], [22247, 2, 9, 2.35], [2778, 2, 7, 1.63], [1007, 2, 12, 0.66], [88, 10, 16, 1.98], [10, 2, 14, 2.05], [8677, 3, 8, 3.19], [8649, 2, 7, 3.11], [10149, 3, 25, 3.26], [2054, 3, 11, 1.86], [412, 1, 7, 1.75], [13028, 3, 7, 1.29], [10825, 21, 13, 2.01], [11681, 2, 11, 2.92], [361, 2, 7, 1.5], [413, 1, 7, 1.89], [7004, 1, 9, 0.99], [2055, 3, 7, 1.92], [2057, 3, 7, 3.71], [7084, 3, 7, 3.14], [411, 2, 7, 1.17], [308, 1, 7, 2.44], [410, 1, 7, 1.42], [6158, 2, 10, 2.87], [8938, 2, 8, 1.58], [8676, 2, 7, 1.94], [1124, 2, 12, 0.75], [432, 3, 7, 2.04], [167, 3, 9, 2.95], [45, 2, 7, 3.67], [7036, 1, 7, 3.16], [3495, 3, 26, 2.72], [7005, 1, 7, 0.99], [5081, 2, 12, 1.3], [94, 4, 7, 3.29], [9827, 3, 7, 1.13], [5812, 3, 8, 4.4], [3893, 1, 7, 1.02], [3889, 1, 7, 1.02], [12870, 1, 9, 5.0], [2049, 1, 7, 2.01], [3891, 1, 7, 1.02], [168, 3, 9, 2.11], [6097, 29, 11, 4.7], [1504, 2, 11, 1.58], [335, 3, 22, 3.16], [6097, 80, 7, 4.71], [11737, 2, 9, 1.41], [95, 3, 21, 0.93], [6098, 29, 9, 4.12], [346, 1, 9, 1.11], [998, 2, 7, 3.14], [79, 1, 7, 0.98], [214, 3, 15, 0.99], [3980, 4, 7, 2.74], [20927, 1, 7, 1.75], [9069, 1, 9, 2.16], [22316, 3, 9, 1.22], [83, 2, 7, 0.85], [6098, 80, 7, 4.14], [20498, 1, 7, 2.94], [8898, 3, 7, 4.48], [9760, 29, 7, 0.94], [1070, 7, 29, 2.72], [997, 2, 7, 2.84], [1622, 1, 9, 0.53], [14017, 3, 7, 1.29], [7567, 3, 9, 3.44], [13034, 3, 10, 2.73], [22554, 10, 15, 0.87], [13260, 29, 9, 2.4], [11116, 1, 9, 0.81], [1243, 2, 7, 1.52], [12924, 1, 9, 0.61], [22317, 3, 20, 1.6], [20498, 3, 10, 3.5], [5946, 1, 7, 1.02], [996, 2, 7, 4.17], [35, 1, 9, 2.6], [5086, 1, 11, 2.14], [5813, 3, 7, 2.04], [9691, 1, 7, 3.2], [995, 2, 7, 4.49], [1413, 15, 9, 0.75], [1080, 3, 7, 1.21], [952, 4, 7, 4.77], [11085, 2, 7, 0.86], [2424, 80, 7, 4.26], [8557, 3, 7, 2.36], [3049, 3, 7, 4.11], [1703, 2, 7, 2.72], [215, 4, 7, 5.0], [20486, 3, 12, 3.26], [39, 1, 7, 1.79], [3900, 3, 7, 2.68], [4076, 3, 7, 5.0], [9081, 3, 15, 3.06], [13023, 3, 8, 2.62], [8274, 3, 7, 1.02], [8943, 3, 7, 0.96], [34, 1, 7, 1.23], [20486, 1, 7, 2.87], [6497, 1, 7, 2.18], [8104, 1, 9, 0.75], [11510, 3, 10, 2.97], [2854, 21, 13, 1.09], [38, 1, 7, 2.24], [23611, 3, 9, 1.04], [3047, 3, 7, 1.93], [20969, 3, 7, 2.16], [1414, 15, 9, 0.56], [2878, 1, 7, 3.02], [114, 3, 7, 0.92], [12923, 1, 7, 0.96], [10529, 29, 7, 2.54], [95, 3, 1035, 3.11], [346, 1, 150, 2.73], [998, 2, 232, 4.15], [79, 1, 47, 2.0], [214, 3, 637, 1.87], [3980, 4, 498, 3.43], [20927, 1, 28, 2.16], [22316, 3, 312, 2.59], [83, 2, 53, 1.75], [20498, 1, 96, 4.1], [8898, 3, 274, 6.0], [9760, 29, 75, 1.62], [1070, 7, 580, 3.4], [997, 2, 232, 4.19], [1622, 1, 113, 1.18], [14017, 3, 195, 3.39], [7567, 3, 68, 4.57], [13034, 3, 577, 4.66], [22554, 10, 373, 1.77], [13260, 29, 71, 3.3], [11116, 1, 78, 1.71], [1243, 2, 102, 2.2], [12924, 1, 52, 3.1], [22317, 3, 311, 3.02], [20498, 3, 580, 4.18], [5946, 1, 121, 1.92], [996, 2, 232, 6.0], [35, 1, 110, 3.63], [5086, 1, 181, 4.29], [5813, 3, 580, 4.12], [9691, 1, 73, 4.81], [995, 2, 232, 6.0], [1413, 15, 96, 1.77], [1080, 3, 138, 1.89], [952, 4, 71, 5.45], [11085, 2, 573, 1.54], [2424, 80, 175, 4.94], [8557, 3, 195, 3.68], [3049, 3, 134, 5.77], [1703, 2, 159, 4.37], [215, 4, 39, 5.79], [20486, 3, 580, 5.44], [39, 1, 110, 2.72], [3900, 3, 45, 3.36], [4076, 3, 196, 6.0], [9081, 3, 453, 4.97], [13023, 3, 580, 4.6], [8274, 3, 299, 1.67], [8943, 3, 133, 1.6], [34, 1, 110, 2.13], [20486, 1, 96, 5.02], [6497, 1, 37, 3.59], [8104, 1, 206, 1.65], [11510, 3, 574, 3.64], [2854, 21, 1094, 2.49], [38, 1, 110, 2.92], [23611, 3, 339, 1.72], [3047, 3, 265, 2.83], [20969, 3, 580, 3.06], [1414, 15, 96, 2.47], [2878, 1, 83, 3.7], [114, 3, 242, 2.57], [12923, 1, 39, 1.64], [10529, 29, 42, 3.21]]</t>
+    <t>20/12/2025 12:37</t>
+  </si>
+  <si>
+    <t>26/12/2025 23:59</t>
+  </si>
+  <si>
+    <t>[[305, 2, 4, 0.35], [8672, 2, 6, 0.73], [3, 2, 4, 0.97], [589, 2, 8, 0.2], [6935, 2, 10, 1.02], [2049, 3, 11, 0.89], [130, 1, 5, 0.85], [205, 2, 4, 0.2], [12721, 2, 6, 0.97], [144, 2, 4, 0.74], [75, 2, 6, 0.87], [145, 2, 4, 0.27], [1776, 1, 4, 0.61], [8915, 2, 8, 0.2], [593, 2, 6, 0.59], [151, 1, 4, 0.2], [2778, 2, 6, 0.2], [1777, 1, 4, 0.74], [8648, 2, 4, 1.27], [6936, 2, 6, 1.17], [2328, 2, 4, 0.2], [5151, 2, 4, 0.22], [147, 1, 4, 0.45], [88, 10, 10, 0.44], [141, 2, 4, 1.31], [83, 2, 4, 0.44], [74, 1, 4, 1.53], [2054, 3, 6, 0.53], [10825, 21, 11, 1.03], [362, 2, 4, 0.96], [1007, 2, 5, 0.37], [2057, 3, 6, 0.47], [345, 3, 5, 0.32], [2055, 3, 5, 0.42], [432, 3, 6, 0.62], [7005, 1, 4, 0.2], [21793, 1, 5, 1.14], [22247, 2, 5, 0.95], [57, 1, 4, 0.44], [410, 1, 4, 1.5], [3889, 1, 4, 0.2], [201, 3, 5, 0.2], [308, 1, 5, 0.49], [11234, 2, 5, 1.4], [12870, 1, 4, 2.08], [10149, 3, 15, 0.99], [7036, 1, 4, 0.68], [1124, 2, 8, 0.2], [35, 1, 4, 0.83], [9827, 3, 4, 0.83], [167, 3, 5, 1.4], [5081, 2, 6, 0.2], [94, 4, 4, 1.57], [8677, 3, 7, 0.65], [1654, 2, 4, 0.48], [411, 2, 4, 0.46], [1504, 2, 5, 0.27], [3891, 1, 4, 0.2], [79, 1, 4, 0.49], [8676, 2, 4, 0.73], [3893, 1, 4, 0.2], [168, 3, 5, 1.23], [2336, 3, 5, 0.99], [5812, 3, 6, 0.8], [9760, 29, 4, 0.2], [23, 1, 4, 1.51], [1490, 1, 4, 0.48], [412, 1, 4, 1.39], [6158, 2, 5, 0.51], [20927, 1, 4, 1.42], [45, 2, 4, 0.64], [1767, 25, 5, 0.59], [361, 2, 4, 1.31], [5208, 3, 5, 0.47], [8651, 2, 4, 1.68], [335, 3, 13, 0.22], [95, 3, 16, 0.3], [9069, 1, 4, 0.42], [25, 1, 4, 1.51], [346, 1, 4, 0.85], [1622, 1, 4, 0.88], [214, 3, 10, 0.2], [8674, 2, 4, 0.73], [2049, 1, 4, 0.23], [21269, 3, 4, 1.23], [413, 1, 5, 1.57], [998, 2, 4, 1.22], [34, 1, 4, 1.85], [3495, 3, 13, 1.31], [856, 1, 4, 0.2], [8898, 3, 6, 0.75], [1070, 7, 10, 0.47], [11116, 1, 5, 0.56], [1766, 25, 4, 0.56], [9691, 1, 4, 2.02], [20498, 1, 4, 0.23], [346, 3, 4, 0.82], [5946, 1, 4, 0.78], [38, 1, 4, 1.85], [9829, 3, 4, 1.17], [14017, 3, 5, 0.79], [974, 3, 5, 1.13], [1091, 1, 4, 0.53], [152, 21, 4, 0.78], [20498, 3, 8, 0.57], [39, 1, 4, 1.85], [82, 2, 4, 1.31], [9372, 1, 5, 2.24], [1080, 3, 5, 0.2], [14037, 3, 5, 0.2], [5086, 1, 4, 2.44], [996, 2, 5, 1.22], [1767, 2, 4, 0.59], [5209, 3, 4, 0.75], [192, 3, 10, 2.16], [5811, 3, 5, 2.2], [3048, 3, 4, 1.24], [9828, 3, 4, 1.52], [972, 3, 5, 0.91], [24, 1, 4, 0.79], [13260, 29, 4, 0.73], [10780, 10, 4, 1.3], [5513, 2, 4, 0.75], [5813, 3, 5, 1.51], [4203, 1, 4, 0.3], [952, 4, 5, 2.16], [202, 2, 4, 1.59], [3981, 3, 12, 1.42], [8945, 3, 5, 1.5], [13034, 3, 5, 1.09], [36, 1, 4, 1.85], [2878, 1, 4, 0.54], [336, 15, 4, 0.35], [3900, 3, 4, 0.49], [955, 2, 4, 0.36], [9082, 3, 18, 0.83], [305, 2, 175, 2.38], [8672, 2, 306, 3.75], [3, 2, 150, 3.44], [589, 2, 173, 1.91], [6935, 2, 342, 3.96], [130, 1, 20, 2.97], [205, 2, 110, 3.06], [12721, 2, 289, 4.25], [144, 2, 162, 2.49], [75, 2, 149, 4.16], [145, 2, 181, 2.07], [1776, 1, 110, 3.69], [8915, 2, 131, 1.75], [593, 2, 243, 3.15], [151, 1, 68, 1.95], [2778, 2, 175, 3.62], [1777, 1, 110, 3.91], [8648, 2, 251, 6.0], [6936, 2, 324, 5.03], [2328, 2, 153, 3.85], [5151, 2, 27, 2.22], [147, 1, 105, 3.44], [88, 10, 603, 3.06], [141, 2, 156, 4.17], [83, 2, 60, 2.02], [74, 1, 200, 6.0], [2054, 3, 479, 3.09], [10825, 21, 639, 4.0], [362, 2, 151, 3.42], [1007, 2, 321, 1.79], [2057, 3, 479, 3.44], [345, 3, 304, 3.6], [2055, 3, 479, 3.34], [432, 3, 306, 3.7], [7005, 1, 81, 1.97], [21793, 1, 268, 5.26], [22247, 2, 305, 3.78], [57, 1, 91, 2.16], [410, 1, 88, 3.88], [3889, 1, 125, 3.36], [201, 3, 304, 3.6], [308, 1, 170, 3.8], [11234, 2, 218, 3.53], [10149, 3, 888, 4.21], [7036, 1, 144, 4.3], [1124, 2, 189, 3.6], [35, 1, 113, 4.47], [9827, 3, 89, 3.28], [167, 3, 230, 4.22], [5081, 2, 214, 3.69], [94, 4, 120, 4.66], [8677, 3, 297, 3.82], [1654, 2, 110, 1.99], [411, 2, 129, 2.19], [1504, 2, 245, 3.29], [3891, 1, 125, 4.24], [79, 1, 56, 2.01], [8676, 2, 306, 2.77], [3893, 1, 125, 4.2], [168, 3, 447, 4.78], [2336, 3, 690, 3.03], [5812, 3, 675, 3.94], [9760, 29, 80, 2.42], [23, 1, 132, 3.98]]</t>
+  </si>
+  <si>
+    <t>[[305, 2, 4, 0.45], [589, 2, 5, 0.66], [6935, 2, 6, 1.69], [2778, 2, 5, 0.2], [144, 2, 4, 0.29], [8915, 2, 5, 0.2], [2328, 2, 4, 0.2], [6936, 2, 5, 1.66], [8648, 2, 5, 1.15], [205, 2, 4, 0.2], [8650, 2, 4, 1.52], [593, 2, 6, 0.2], [145, 2, 4, 0.25], [146, 2, 5, 0.91], [326, 2, 4, 0.39], [7036, 1, 4, 1.53], [88, 10, 17, 0.52], [2776, 2, 4, 0.81], [141, 2, 5, 0.39], [7004, 1, 4, 1.09], [1446, 2, 4, 0.28], [1124, 2, 4, 0.57], [206, 2, 4, 0.2], [142, 2, 4, 0.92], [2912, 1, 4, 1.89], [11685, 2, 4, 0.71], [10993, 2, 5, 0.2], [7886, 4, 5, 0.44], [5165, 1, 4, 1.36], [12870, 1, 5, 1.68], [3893, 1, 4, 0.2], [2055, 3, 5, 0.56], [1622, 1, 5, 0.88], [417, 2, 4, 0.92], [21793, 1, 5, 0.61], [2054, 3, 5, 2.22], [3889, 1, 4, 0.2], [7573, 1, 10, 2.46], [523, 2, 4, 0.55], [7885, 4, 5, 0.49], [61, 3, 4, 0.98], [9372, 1, 4, 1.42], [10, 2, 5, 0.36], [3891, 1, 4, 0.63], [10149, 3, 17, 1.21], [5208, 3, 6, 0.19], [75, 2, 5, 1.25], [9491, 21, 17, 0.22], [20927, 1, 4, 1.51], [997, 2, 5, 3.04], [12721, 2, 7, 1.46], [35, 1, 5, 1.54], [3, 2, 5, 0.93], [5165, 2, 5, 1.11], [11234, 2, 4, 1.4], [33, 1, 5, 1.18], [998, 2, 4, 1.6], [94, 4, 4, 1.46], [22247, 2, 4, 1.14], [972, 3, 5, 0.75], [5076, 1, 4, 0.71], [6158, 2, 6, 0.2], [34, 1, 4, 1.32], [2805, 137, 4, 1.42], [2912, 2, 7, 1.89], [2424, 80, 4, 1.36], [38, 1, 4, 1.38], [8104, 1, 4, 1.97], [8898, 3, 5, 4.0], [12212, 29, 5, 0.2], [39, 1, 5, 1.35], [13928, 1, 4, 1.32], [11952, 1, 5, 0.66], [1414, 15, 4, 0.39], [24257, 1, 5, 0.52], [7567, 3, 4, 1.58], [2424, 29, 5, 0.66], [3495, 3, 13, 1.25], [9691, 1, 4, 1.47], [11770, 1, 5, 1.08], [192, 3, 10, 1.07], [3048, 3, 5, 0.92], [11490, 1, 4, 0.71], [995, 2, 4, 1.02], [5946, 1, 4, 0.63], [23961, 3, 4, 1.88], [411, 2, 4, 1.1], [11772, 1, 4, 0.68], [632, 11, 13, 0.73], [161, 3, 5, 1.49], [1703, 2, 5, 1.33], [10407, 10, 7, 1.4], [74, 1, 4, 1.6], [13023, 3, 4, 1.51], [1523, 1, 4, 0.56], [4253, 1, 4, 0.39], [5164, 1, 4, 0.64], [2331, 1, 4, 1.16], [1519, 3, 10, 0.39], [21269, 3, 4, 2.05], [1274, 1, 5, 0.2], [10410, 10, 11, 1.94], [3430, 15, 4, 1.7], [12764, 2, 5, 0.43], [1492, 1, 4, 0.38], [972, 1, 4, 1.01], [11236, 2, 4, 0.62], [214, 3, 13, 0.2], [24258, 1, 4, 0.84], [6097, 29, 4, 1.3], [6097, 80, 4, 1.51], [1080, 3, 4, 1.41], [13893, 2, 4, 1.17], [10780, 10, 4, 2.12], [3047, 3, 4, 1.64], [8674, 2, 4, 2.15], [9081, 3, 7, 1.34], [13928, 2, 4, 1.32], [3576, 29, 4, 1.67], [10408, 10, 6, 1.58], [12662, 1, 4, 0.75], [1243, 2, 4, 0.41], [13034, 3, 4, 1.2], [13264, 29, 4, 0.47], [2436, 4, 4, 0.8], [45, 2, 4, 1.17], [2438, 2, 5, 1.18], [11813, 1, 5, 0.48], [3334, 5, 4, 1.37], [7704, 2, 4, 0.6], [20486, 3, 4, 1.51], [1277, 1, 4, 0.65], [11812, 1, 4, 0.48], [8659, 1, 4, 0.41], [10936, 2, 4, 0.79], [305, 2, 162, 3.71], [589, 2, 71, 2.7], [6935, 2, 280, 6.0], [2778, 2, 154, 3.81], [144, 2, 159, 2.24], [8915, 2, 189, 3.19], [2328, 2, 149, 4.03], [6936, 2, 280, 6.0], [8648, 2, 219, 5.96], [205, 2, 108, 2.81], [8650, 2, 257, 4.33], [593, 2, 262, 3.44], [145, 2, 159, 2.88], [146, 2, 159, 2.6], [326, 2, 107, 2.22], [7036, 1, 126, 5.91], [88, 10, 587, 3.29], [2776, 2, 162, 3.2], [141, 2, 153, 3.61], [7004, 1, 55, 3.21], [1446, 2, 150, 2.84], [1124, 2, 216, 2.79], [206, 2, 117, 3.03], [142, 2, 162, 3.48], [2912, 1, 52, 4.91], [11685, 2, 332, 2.96], [10993, 2, 13, 2.36], [7886, 4, 33, 2.14], [5165, 1, 47, 3.82], [12870, 1, 137, 6.0], [3893, 1, 136, 3.6], [2055, 3, 469, 2.83], [1622, 1, 107, 2.58], [417, 2, 162, 3.22], [21793, 1, 235, 2.9], [2054, 3, 512, 4.62], [3889, 1, 136, 4.07], [7573, 1, 341, 6.0], [523, 2, 162, 2.39], [61, 3, 216, 3.63], [9372, 1, 238, 5.09], [10, 2, 103, 3.26], [3891, 1, 144, 2.41], [10149, 3, 853, 5.0], [5208, 3, 558, 2.37], [75, 2, 144, 4.75], [9491, 21, 2148, 3.78], [997, 2, 236, 5.88], [12721, 2, 280, 5.19], [35, 1, 127, 4.43], [3, 2, 118, 4.21], [5165, 2, 375, 3.39], [11234, 2, 64, 3.59], [33, 1, 114, 4.37], [998, 2, 236, 4.39], [94, 4, 136, 4.96], [22247, 2, 280, 3.97], [972, 3, 585, 4.02], [5076, 1, 135, 3.88], [6158, 2, 257, 2.89], [34, 1, 127, 4.45], [2805, 137, 183, 6.0], [2912, 2, 414, 4.77], [2424, 80, 168, 4.11], [38, 1, 127, 4.5]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 5, 1.09], [326, 2, 4, 0.71], [144, 2, 4, 1.05], [11685, 2, 4, 1.87], [11681, 2, 5, 1.37], [589, 2, 5, 0.2], [205, 2, 4, 0.37], [141, 2, 4, 0.53], [593, 2, 6, 0.27], [305, 2, 4, 0.51], [8915, 2, 6, 0.53], [8650, 2, 4, 0.77], [143, 2, 4, 0.38], [2328, 2, 4, 0.42], [6936, 2, 7, 1.85], [2778, 2, 6, 0.2], [206, 2, 4, 0.71], [146, 2, 5, 0.57], [88, 10, 12, 1.39], [7004, 1, 4, 1.37], [9507, 3, 4, 0.36], [7036, 1, 4, 1.73], [145, 2, 4, 0.91], [1446, 2, 4, 0.65], [417, 2, 4, 0.4], [8853, 2, 6, 1.45], [2055, 3, 6, 2.24], [10993, 2, 4, 0.51], [523, 2, 6, 0.53], [11737, 2, 4, 0.98], [75, 2, 4, 0.75], [2050, 3, 4, 1.14], [12870, 1, 4, 1.4], [3840, 1, 4, 0.4], [3893, 1, 4, 0.2], [12350, 1, 4, 1.24], [2057, 3, 5, 1.78], [13028, 3, 4, 0.62], [2054, 3, 4, 1.14], [7084, 3, 5, 1.32], [3889, 1, 5, 0.2], [2991, 3, 4, 0.78], [20927, 1, 4, 1.11], [3, 2, 4, 0.52], [7005, 1, 5, 0.67], [997, 2, 6, 1.03], [94, 4, 4, 2.13], [10, 2, 4, 0.36], [21793, 1, 5, 1.34], [7885, 4, 5, 0.52], [996, 2, 4, 1.05], [3891, 1, 4, 0.45], [5165, 1, 4, 0.65], [998, 2, 4, 0.91], [6158, 2, 4, 2.18], [8672, 2, 5, 1.18], [9491, 21, 10, 0.52], [11739, 2, 4, 1.78], [5165, 2, 5, 0.65], [2912, 1, 4, 2.02], [972, 3, 4, 1.78], [956, 2, 4, 0.35], [413, 1, 4, 0.87], [98, 11, 11, 0.67], [346, 3, 4, 0.44], [10388, 2, 4, 0.6], [411, 2, 4, 1.15], [346, 1, 4, 0.43], [1492, 1, 4, 0.48], [83, 2, 4, 0.42], [7573, 1, 4, 0.97], [8677, 3, 4, 1.96], [7567, 3, 4, 1.47], [5208, 3, 4, 1.03], [410, 1, 4, 0.8], [22316, 3, 6, 0.51], [9372, 1, 4, 0.97], [995, 2, 4, 0.79], [13928, 1, 4, 1.35], [9081, 3, 7, 0.78], [22247, 2, 4, 1.07], [336, 15, 4, 1.17], [308, 1, 4, 0.67], [161, 3, 6, 1.78], [2912, 2, 5, 2.02], [10631, 2, 4, 1.5], [1622, 1, 4, 1.47], [11953, 1, 4, 0.55], [22317, 3, 6, 0.51], [345, 3, 5, 0.76], [23611, 3, 5, 0.55], [9082, 3, 17, 1.08], [229, 1, 4, 1.04], [6497, 1, 4, 1.56], [192, 3, 11, 0.72], [37, 1, 5, 1.16], [24257, 1, 5, 2.97], [972, 1, 5, 0.5], [11767, 1, 4, 0.2], [12271, 2, 4, 2.52], [10410, 10, 6, 1.98], [82, 2, 4, 0.66], [14037, 3, 4, 1.22], [10407, 10, 7, 1.61], [7704, 2, 4, 1.45], [34, 1, 5, 0.93], [74, 1, 4, 0.93], [3048, 3, 4, 1.14], [1413, 15, 4, 0.36], [20498, 3, 5, 0.4], [38, 1, 5, 0.66], [335, 3, 9, 0.88], [2331, 1, 4, 1.54], [12338, 29, 5, 0.2], [215, 4, 4, 2.5], [12721, 2, 4, 0.9], [152, 21, 5, 0.34], [9, 1, 5, 0.2], [9964, 2, 4, 1.35], [1523, 1, 4, 0.44], [4253, 1, 4, 0.34], [11510, 3, 5, 0.99], [45, 2, 4, 1.17], [8673, 2, 4, 2.14], [12764, 2, 5, 0.2], [10093, 3, 9, 0.92], [5209, 3, 4, 1.03], [7705, 2, 4, 1.45], [1703, 2, 4, 1.96], [2805, 137, 4, 0.93], [7706, 2, 4, 2.22], [3047, 3, 4, 0.95], [12212, 29, 5, 0.24], [1895, 3, 4, 2.5], [9971, 2, 4, 0.45], [6935, 2, 262, 5.26], [326, 2, 100, 2.5], [144, 2, 173, 3.31], [11685, 2, 284, 6.0], [11681, 2, 284, 6.0], [589, 2, 157, 2.97], [205, 2, 107, 1.87], [141, 2, 143, 4.17], [593, 2, 233, 3.46], [305, 2, 136, 3.63], [8915, 2, 186, 2.06], [8650, 2, 206, 3.55], [143, 2, 163, 3.14], [2328, 2, 165, 1.94], [6936, 2, 262, 6.0], [2778, 2, 144, 3.76], [206, 2, 106, 2.7], [146, 2, 156, 3.93], [88, 10, 524, 3.54], [7004, 1, 85, 3.77], [9507, 3, 73, 1.53], [7036, 1, 118, 4.97], [145, 2, 165, 2.87], [1446, 2, 147, 2.85], [417, 2, 151, 2.06], [8853, 2, 262, 5.07], [2055, 3, 421, 6.0], [10993, 2, 58, 2.11], [523, 2, 143, 3.75], [11737, 2, 61, 3.02], [75, 2, 159, 3.26], [2050, 3, 484, 5.31], [12870, 1, 148, 4.94], [3840, 1, 103, 1.78], [3893, 1, 122, 1.96], [12350, 1, 593, 5.04], [2057, 3, 421, 6.0], [13028, 3, 159, 2.38], [2054, 3, 484, 5.31], [7084, 3, 120, 4.13], [3889, 1, 116, 2.88], [2991, 3, 166, 4.52], [20927, 1, 80, 3.27], [3, 2, 129, 2.12], [7005, 1, 77, 2.67], [997, 2, 220, 3.69], [94, 4, 125, 5.23], [21793, 1, 230, 4.18], [996, 2, 257, 4.15], [3891, 1, 135, 2.0], [5165, 1, 51, 3.25], [998, 2, 257, 4.15], [6158, 2, 278, 5.33], [8672, 2, 265, 5.08], [9491, 21, 2047, 3.04], [11739, 2, 14, 4.06], [5165, 2, 410, 3.24], [2912, 1, 48, 5.09], [972, 3, 212, 4.72], [956, 2, 117, 1.8], [413, 1, 93, 2.8], [98, 11, 805, 3.22], [346, 3, 666, 1.99], [10388, 2, 214, 2.28], [411, 2, 100, 3.34]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 9, 0.47], [362, 2, 5, 0.7], [2049, 3, 12, 0.2], [589, 2, 6, 0.2], [3, 2, 4, 1.01], [75, 2, 5, 0.49], [1776, 1, 4, 0.58], [141, 2, 5, 1.05], [8672, 2, 6, 0.72], [130, 1, 4, 0.4], [205, 2, 4, 0.46], [2778, 2, 6, 0.2], [11681, 2, 5, 2.33], [1777, 1, 5, 0.93], [305, 2, 4, 0.49], [6936, 2, 5, 1.27], [8648, 2, 5, 0.77], [593, 2, 7, 0.72], [990, 2, 4, 0.39], [2328, 2, 6, 0.2], [248, 1, 4, 0.37], [88, 10, 12, 0.33], [1007, 2, 6, 0.37], [83, 2, 4, 0.5], [345, 3, 5, 0.32], [5151, 2, 4, 0.65], [8650, 2, 5, 1.15], [412, 1, 4, 1.27], [361, 2, 4, 0.49], [22247, 2, 5, 0.97], [201, 3, 6, 0.32], [57, 1, 6, 0.2], [21793, 1, 4, 1.03], [10149, 3, 17, 1.32], [45, 2, 5, 1.12], [12721, 2, 6, 0.97], [7004, 1, 5, 0.47], [2054, 3, 5, 1.33], [10825, 21, 8, 1.16], [413, 1, 4, 1.45], [167, 3, 5, 1.09], [2057, 3, 5, 1.62], [74, 1, 4, 0.84], [6158, 2, 6, 0.87], [308, 1, 5, 0.72], [168, 3, 6, 0.74], [432, 3, 5, 0.39], [10, 2, 5, 0.2], [13028, 3, 5, 0.5], [7887, 4, 5, 0.4], [7036, 1, 5, 1.96], [3495, 3, 15, 0.92], [214, 3, 10, 0.42], [12870, 1, 4, 2.58], [335, 3, 15, 0.4], [5081, 2, 5, 0.2], [79, 1, 4, 0.2], [5208, 3, 7, 0.18], [9827, 3, 4, 0.2], [410, 1, 4, 0.8], [3889, 1, 5, 0.2], [95, 3, 13, 1.11], [5812, 3, 6, 1.21], [3893, 1, 5, 0.2], [1504, 2, 4, 0.2], [13260, 29, 4, 0.85], [23, 1, 4, 1.51], [94, 4, 4, 2.4], [7005, 1, 5, 0.49], [1490, 1, 4, 1.04], [411, 2, 4, 0.74], [25, 1, 4, 1.76], [998, 2, 4, 0.69], [1124, 2, 5, 0.79], [3980, 4, 4, 1.4], [21269, 3, 4, 3.75], [10574, 3, 5, 0.42], [5086, 1, 6, 1.11], [9691, 1, 4, 2.15], [856, 1, 4, 0.2], [2878, 1, 4, 1.82], [5660, 2, 5, 2.37], [11914, 1, 6, 0.2], [997, 2, 5, 1.37], [20927, 1, 4, 0.61], [9829, 3, 4, 1.06], [1703, 2, 4, 1.38], [8676, 2, 4, 0.97], [5209, 3, 6, 0.18], [9081, 3, 10, 1.8], [1622, 1, 6, 0.35], [192, 3, 11, 2.4], [952, 4, 4, 2.89], [20498, 1, 4, 0.93], [8674, 2, 4, 1.22], [8898, 3, 6, 2.67], [5513, 2, 4, 0.52], [1070, 7, 8, 0.64], [996, 2, 4, 1.37], [1091, 1, 4, 0.2], [12661, 1, 4, 2.6], [14037, 3, 4, 0.47], [13034, 3, 6, 1.01], [6097, 29, 4, 0.2], [1519, 3, 14, 0.22], [22317, 3, 6, 0.51], [24, 1, 5, 1.6], [20498, 3, 6, 1.52], [8274, 3, 6, 1.09], [4203, 1, 5, 0.53], [10529, 29, 4, 1.19], [9760, 29, 4, 0.2], [82, 2, 4, 0.72], [6097, 80, 4, 0.41], [1413, 15, 4, 0.37], [336, 15, 4, 0.35], [9082, 3, 18, 1.17], [11767, 1, 4, 0.47], [2104, 3, 6, 1.63], [23611, 3, 4, 1.3], [995, 2, 4, 0.98], [6098, 80, 4, 1.4], [66, 1, 4, 0.2], [11769, 1, 4, 0.47], [6098, 29, 4, 0.6], [66, 16, 4, 0.47], [13484, 1, 4, 1.93], [8945, 3, 5, 0.98], [2109, 3, 9, 0.46], [10780, 10, 4, 2.28], [20486, 1, 4, 2.5], [9372, 1, 5, 0.42], [5946, 1, 4, 1.36], [2537, 1, 4, 1.19], [972, 3, 5, 1.01], [6935, 2, 278, 4.7], [362, 2, 147, 2.58], [2049, 3, 486, 2.4], [589, 2, 137, 1.65], [3, 2, 124, 3.17], [75, 2, 131, 4.14], [1776, 1, 97, 3.47], [141, 2, 137, 3.39], [8672, 2, 253, 3.31], [130, 1, 62, 1.72], [205, 2, 56, 2.96], [2778, 2, 154, 3.46], [11681, 2, 277, 6.0], [1777, 1, 97, 4.13], [305, 2, 131, 3.03], [6936, 2, 283, 5.08], [8648, 2, 221, 5.61], [593, 2, 223, 3.28], [990, 2, 55, 1.7], [2328, 2, 150, 3.34], [88, 10, 502, 4.75], [1007, 2, 253, 1.99], [83, 2, 48, 2.11], [345, 3, 284, 2.29], [5151, 2, 26, 2.64], [8650, 2, 221, 5.65], [412, 1, 74, 4.09], [361, 2, 137, 3.58], [22247, 2, 267, 3.35], [201, 3, 284, 2.2], [57, 1, 76, 2.84], [21793, 1, 236, 6.0], [10149, 3, 768, 5.15], [45, 2, 98, 5.05], [12721, 2, 267, 2.73], [7004, 1, 71, 2.68], [2054, 3, 440, 4.17], [10825, 21, 608, 3.05], [413, 1, 81, 3.74], [167, 3, 202, 4.11], [2057, 3, 417, 4.35], [74, 1, 179, 4.92], [6158, 2, 243, 3.8], [308, 1, 158, 3.39], [168, 3, 360, 3.79], [432, 3, 268, 2.76], [10, 2, 86, 2.95], [13028, 3, 131, 3.33], [7887, 4, 125, 1.92], [7036, 1, 113, 5.95], [3495, 3, 855, 4.0], [214, 3, 574, 1.92], [5081, 2, 171, 3.4], [79, 1, 43, 2.25], [5208, 3, 499, 4.35], [9827, 3, 78, 3.26], [410, 1, 73, 2.95], [3889, 1, 109, 4.11], [95, 3, 981, 4.54], [5812, 3, 596, 4.23], [3893, 1, 109, 3.58], [1504, 2, 202, 3.29], [13260, 29, 64, 3.25], [23, 1, 104, 3.86], [94, 4, 106, 5.57]]</t>
+  </si>
+  <si>
+    <t>[[589, 2, 6, 0.2], [88, 10, 12, 0.19], [8915, 2, 5, 0.2], [6935, 2, 7, 1.69], [2778, 2, 5, 0.2], [305, 2, 6, 0.45], [2328, 2, 4, 0.26], [326, 2, 5, 0.72], [6936, 2, 6, 1.66], [8650, 2, 5, 2.46], [8648, 2, 5, 1.7], [1446, 2, 4, 0.2], [7004, 1, 4, 0.99], [205, 2, 4, 0.87], [2775, 2, 4, 0.93], [144, 2, 5, 1.04], [10, 2, 5, 0.2], [1124, 2, 4, 0.57], [94, 4, 4, 1.46], [7885, 4, 4, 0.49], [3893, 1, 5, 0.2], [7886, 4, 4, 0.48], [141, 2, 4, 0.92], [146, 2, 6, 1.32], [3891, 1, 4, 0.2], [2055, 3, 5, 0.98], [75, 2, 5, 0.99], [21793, 1, 5, 0.86], [206, 2, 4, 0.71], [12349, 1, 4, 2.14], [10993, 2, 4, 0.2], [5208, 3, 7, 0.19], [2054, 3, 4, 2.22], [3889, 1, 6, 0.2], [3980, 4, 6, 1.21], [7005, 1, 4, 0.93], [12870, 1, 4, 1.93], [145, 2, 4, 1.5], [5165, 1, 4, 0.9], [2912, 1, 4, 1.89], [10149, 3, 13, 1.71], [20927, 1, 4, 1.68], [9760, 29, 4, 0.2], [998, 2, 4, 1.6], [2436, 4, 4, 0.2], [7887, 4, 4, 0.97], [417, 2, 4, 0.92], [997, 2, 4, 1.02], [2424, 80, 5, 1.11], [3, 2, 5, 0.37], [6158, 2, 5, 0.2], [632, 11, 12, 0.73], [5076, 1, 6, 0.56], [9491, 21, 10, 1.09], [972, 3, 6, 0.51], [229, 1, 5, 1.16], [214, 3, 9, 0.56], [74, 1, 5, 1.22], [3495, 3, 10, 1.28], [523, 2, 4, 0.55], [11770, 1, 4, 1.09], [7573, 1, 9, 2.71], [11953, 1, 5, 0.45], [5165, 2, 5, 0.9], [24257, 1, 4, 0.48], [12721, 2, 4, 0.9], [2423, 80, 4, 1.97], [1492, 1, 4, 0.38], [12350, 1, 4, 4.0], [11772, 1, 4, 0.68], [192, 3, 10, 1.07], [1622, 1, 5, 0.49], [2912, 2, 7, 2.28], [22317, 3, 4, 0.42], [8677, 3, 4, 1.3], [2438, 2, 5, 1.88], [5434, 1, 4, 1.41], [8898, 3, 5, 4.0], [823, 1, 5, 0.4], [361, 2, 4, 0.92], [2424, 29, 4, 0.78], [9372, 1, 4, 1.36], [4253, 1, 4, 0.39], [3975, 4, 4, 1.51], [3900, 3, 5, 0.46], [33, 1, 5, 0.47], [5209, 3, 7, 0.19], [6496, 1, 4, 1.69], [7567, 3, 4, 1.18], [37, 1, 5, 0.47], [5946, 1, 4, 0.2], [2805, 137, 4, 1.35], [335, 3, 9, 0.49], [11812, 1, 4, 0.22], [12764, 2, 5, 0.2], [10407, 10, 8, 1.44], [220, 4, 4, 1.76], [6097, 80, 4, 0.66], [972, 1, 4, 1.01], [1703, 2, 4, 0.56], [10388, 2, 4, 0.61], [24258, 1, 4, 0.84], [1339, 3, 10, 0.36], [11490, 1, 4, 0.5], [38, 1, 4, 0.84], [35, 1, 5, 0.47], [1414, 15, 4, 0.39], [1274, 1, 4, 0.56], [22247, 2, 4, 1.06], [161, 3, 5, 1.49], [11236, 2, 4, 0.62], [4232, 80, 4, 1.82], [2104, 3, 9, 0.72], [1895, 3, 4, 0.88], [12212, 29, 5, 0.2], [12979, 25, 7, 0.47], [13893, 2, 4, 1.17], [10631, 2, 4, 1.55], [8659, 1, 4, 0.41], [11813, 1, 4, 0.88], [216, 4, 4, 0.61], [1309, 1, 4, 0.45], [8635, 3, 4, 0.87], [10093, 3, 8, 0.92], [12728, 1, 4, 1.2], [4940, 1, 4, 0.51], [8104, 1, 4, 1.97], [8274, 3, 4, 0.87], [76, 2, 4, 0.47], [788, 2, 4, 0.51], [12501, 1, 4, 1.24], [13928, 1, 4, 1.58], [5164, 1, 4, 0.64], [11942, 29, 4, 0.52], [10386, 2, 4, 0.77], [19931, 1, 4, 1.26], [589, 2, 152, 2.97], [88, 10, 558, 3.67], [8915, 2, 189, 3.19], [6935, 2, 280, 6.0], [2778, 2, 154, 3.81], [305, 2, 162, 3.71], [2328, 2, 149, 4.28], [326, 2, 107, 3.65], [6936, 2, 280, 6.0], [8650, 2, 219, 6.0], [8648, 2, 231, 4.48], [1446, 2, 150, 3.82], [7004, 1, 18, 3.12], [205, 2, 114, 2.87], [2775, 2, 181, 2.99], [144, 2, 151, 3.98], [10, 2, 24, 2.72], [1124, 2, 216, 2.79], [94, 4, 136, 4.96], [3893, 1, 136, 3.6], [7886, 4, 33, 1.59], [141, 2, 162, 3.48], [146, 2, 151, 3.93], [3891, 1, 136, 3.65], [2055, 3, 495, 3.11], [75, 2, 144, 4.87], [21793, 1, 235, 2.86], [206, 2, 113, 2.57], [12349, 1, 693, 5.33], [10993, 2, 19, 1.98], [5208, 3, 558, 3.42], [2054, 3, 162, 5.16], [3889, 1, 136, 4.07], [3980, 4, 476, 4.77], [7005, 1, 83, 2.99], [12870, 1, 137, 6.0], [5165, 1, 50, 3.27], [2912, 1, 52, 4.91], [10149, 3, 853, 5.0], [9760, 29, 71, 3.39], [998, 2, 272, 5.2], [2436, 4, 114, 2.69], [417, 2, 162, 3.48], [997, 2, 236, 3.69], [2424, 80, 168, 4.11], [3, 2, 118, 4.21], [6158, 2, 257, 2.89], [632, 11, 855, 2.6], [5076, 1, 128, 3.98], [9491, 21, 2261, 4.29], [972, 3, 585, 4.02], [229, 1, 81, 4.37], [214, 3, 529, 2.18], [74, 1, 208, 6.0], [3495, 3, 1114, 3.77], [523, 2, 162, 2.39], [11770, 1, 237, 5.03], [7573, 1, 341, 6.0], [11953, 1, 197, 2.8], [5165, 2, 395, 3.28], [24257, 1, 139, 2.65], [12721, 2, 328, 2.93], [1492, 1, 43, 2.34], [12350, 1, 693, 6.0]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 6, 1.34], [305, 2, 4, 0.51], [2778, 2, 6, 0.2], [6936, 2, 6, 1.35], [205, 2, 6, 0.2], [88, 10, 8, 0.19], [144, 2, 5, 0.47], [11681, 2, 5, 1.61], [8915, 2, 5, 0.86], [589, 2, 5, 0.2], [326, 2, 5, 0.7], [2327, 2, 5, 0.2], [8650, 2, 6, 1.21], [7036, 1, 4, 1.48], [593, 2, 7, 0.27], [11685, 2, 4, 1.9], [3893, 1, 5, 0.2], [141, 2, 7, 0.53], [2775, 2, 4, 1.06], [206, 2, 4, 0.65], [9507, 3, 4, 0.36], [7004, 1, 4, 0.94], [3840, 1, 4, 0.4], [3980, 4, 6, 1.19], [143, 2, 5, 1.53], [3891, 1, 4, 0.2], [2050, 3, 4, 1.69], [146, 2, 5, 1.32], [7885, 4, 5, 0.2], [7886, 4, 5, 0.4], [3889, 1, 4, 0.35], [2055, 3, 5, 1.73], [2328, 2, 4, 0.42], [10, 2, 4, 0.36], [2054, 3, 6, 1.86], [362, 2, 5, 0.82], [12870, 1, 6, 1.4], [8672, 2, 6, 0.73], [10993, 2, 5, 0.63], [12349, 1, 4, 1.96], [3975, 4, 4, 1.39], [7084, 3, 4, 1.07], [21793, 1, 4, 1.34], [5165, 1, 4, 0.9], [2057, 3, 4, 2.02], [1446, 2, 4, 0.9], [75, 2, 4, 0.46], [5208, 3, 4, 1.03], [145, 2, 4, 1.3], [2991, 3, 4, 1.13], [523, 2, 5, 1.03], [94, 4, 4, 2.13], [3982, 3, 14, 1.42], [7005, 1, 4, 0.72], [3495, 3, 13, 1.14], [20927, 1, 4, 1.42], [997, 2, 4, 0.77], [7887, 4, 5, 1.2], [6158, 2, 4, 2.18], [2912, 1, 4, 2.02], [82, 2, 5, 0.66], [61, 3, 5, 1.41], [192, 3, 10, 1.01], [35, 1, 5, 1.58], [956, 2, 4, 0.35], [417, 2, 4, 0.4], [5165, 2, 5, 0.65], [22316, 3, 6, 0.51], [6497, 1, 4, 1.56], [998, 2, 4, 0.91], [11953, 1, 6, 0.2], [7567, 3, 4, 0.71], [286, 3, 4, 0.72], [11769, 1, 5, 0.96], [389, 4, 4, 0.85], [1492, 1, 4, 0.48], [996, 2, 7, 1.47], [346, 3, 5, 1.28], [12344, 1, 4, 1.02], [4176, 4, 5, 1.31], [11767, 1, 4, 0.78], [39, 1, 4, 1.04], [7573, 1, 5, 1.22], [410, 1, 4, 0.62], [6496, 1, 4, 0.46], [37, 1, 4, 0.91], [8677, 3, 5, 1.15], [972, 3, 5, 2.02], [74, 1, 4, 0.93], [12721, 2, 4, 1.22], [411, 2, 4, 0.64], [2104, 3, 6, 1.46], [11490, 1, 4, 0.54], [2436, 4, 5, 2.37], [12212, 29, 4, 0.2], [22317, 3, 5, 0.26], [2912, 2, 5, 2.02], [201, 3, 5, 0.51], [345, 3, 4, 0.5], [336, 15, 5, 1.17], [1413, 15, 4, 0.2], [1274, 1, 4, 1.01], [11085, 2, 6, 1.78], [8121, 3, 4, 0.5], [1277, 1, 5, 0.65], [3979, 3, 5, 1.18], [3, 2, 6, 0.46], [14037, 3, 4, 1.22], [21269, 3, 4, 3.49], [823, 1, 4, 0.56], [38, 1, 4, 0.91], [13023, 3, 4, 1.52], [6494, 1, 4, 0.46], [9, 1, 4, 0.2], [12271, 2, 4, 2.52], [8673, 2, 4, 2.14], [36, 1, 4, 0.66], [9784, 1, 4, 0.48], [22247, 2, 5, 1.39], [8676, 2, 5, 0.98], [10408, 10, 5, 1.4], [3577, 25, 4, 0.78], [2805, 137, 4, 0.93], [5209, 3, 4, 1.03], [1414, 15, 4, 0.2], [20498, 3, 6, 0.4], [10936, 2, 4, 0.45], [95, 3, 12, 0.5], [2878, 1, 4, 1.16], [11812, 1, 4, 0.22], [10388, 2, 4, 0.6], [9491, 21, 11, 0.59], [13928, 1, 5, 1.1], [346, 1, 5, 1.52], [399, 24, 4, 2.63], [6935, 2, 262, 5.51], [305, 2, 136, 3.63], [2778, 2, 169, 2.2], [6936, 2, 262, 5.89], [205, 2, 111, 2.78], [88, 10, 524, 3.54], [144, 2, 55, 3.98], [11681, 2, 275, 5.79], [8915, 2, 186, 2.64], [589, 2, 157, 2.97], [326, 2, 86, 3.24], [2327, 2, 154, 3.43], [8650, 2, 206, 5.17], [7036, 1, 118, 4.97], [593, 2, 233, 3.46], [11685, 2, 299, 4.85], [3893, 1, 122, 1.89], [141, 2, 143, 4.17], [2775, 2, 169, 3.17], [206, 2, 100, 2.63], [9507, 3, 73, 1.53], [7004, 1, 80, 3.65], [3840, 1, 103, 1.78], [3980, 4, 443, 5.08], [143, 2, 54, 3.88], [3891, 1, 116, 2.55], [2050, 3, 421, 6.0], [146, 2, 140, 3.93], [7886, 4, 52, 1.85], [3889, 1, 135, 1.8], [2055, 3, 421, 6.0], [2328, 2, 165, 1.94], [2054, 3, 421, 6.0], [362, 2, 137, 3.93], [12870, 1, 126, 6.0], [8672, 2, 265, 5.08], [10993, 2, 50, 2.94], [12349, 1, 623, 5.04], [3975, 4, 467, 3.89], [7084, 3, 120, 4.13], [21793, 1, 230, 3.71], [5165, 1, 46, 3.27], [2057, 3, 421, 6.0], [1446, 2, 163, 2.85], [75, 2, 144, 2.02], [5208, 3, 531, 4.39], [145, 2, 55, 3.71], [2991, 3, 154, 3.83], [523, 2, 143, 3.75], [94, 4, 125, 5.23], [3982, 3, 729, 5.02], [7005, 1, 80, 2.77], [3495, 3, 1034, 4.98], [20927, 1, 85, 3.95], [997, 2, 257, 4.15], [6158, 2, 278, 5.33], [2912, 1, 48, 5.09], [82, 2, 55, 2.63], [61, 3, 201, 3.83], [192, 3, 1307, 4.82], [35, 1, 27, 4.11], [956, 2, 117, 1.8], [417, 2, 151, 2.31], [5165, 2, 410, 3.24], [22316, 3, 291, 3.17]]</t>
+  </si>
+  <si>
+    <t>[[141, 2, 5, 0.2], [8650, 2, 4, 1.46], [361, 2, 4, 0.2], [5491, 2, 5, 0.2], [589, 2, 5, 0.2], [11685, 2, 4, 0.2], [417, 2, 4, 0.2], [326, 2, 4, 0.55], [6935, 2, 13, 1.06], [205, 2, 4, 0.2], [1124, 2, 5, 0.57], [8648, 2, 4, 0.91], [12721, 2, 5, 0.48], [248, 1, 4, 0.26], [11838, 2, 5, 0.63], [11837, 2, 4, 0.83], [142, 2, 4, 0.2], [8915, 2, 4, 0.38], [6936, 2, 6, 1.25], [2778, 2, 6, 0.2], [8676, 2, 4, 2.86], [9507, 3, 4, 0.35], [305, 2, 5, 1.23], [21793, 1, 4, 1.54], [22247, 2, 5, 1.0], [11835, 2, 4, 0.73], [593, 2, 5, 0.78], [616, 2, 6, 0.2], [411, 2, 4, 0.64], [990, 2, 4, 0.2], [10574, 3, 7, 1.5], [12353, 1, 4, 3.55], [8673, 2, 4, 0.97], [2775, 2, 4, 0.48], [145, 2, 4, 0.91], [6158, 2, 5, 0.89], [11836, 2, 4, 0.63], [2055, 3, 4, 0.8], [3495, 3, 13, 1.34], [10149, 3, 13, 0.75], [88, 10, 8, 1.2], [12344, 1, 4, 2.77], [146, 2, 4, 0.91], [75, 2, 4, 1.68], [2054, 3, 6, 0.8], [2057, 3, 4, 0.8], [10993, 2, 5, 0.4], [7705, 2, 5, 1.15], [12343, 1, 4, 3.55], [7885, 4, 5, 0.94], [61, 3, 4, 0.36], [2424, 29, 4, 1.45], [144, 2, 4, 0.91], [7704, 2, 5, 1.15], [2859, 15, 4, 0.63], [2423, 29, 4, 1.26], [5165, 1, 4, 0.86], [2423, 80, 4, 1.23], [201, 3, 6, 0.76], [335, 3, 10, 0.88], [308, 1, 6, 1.85], [9126, 1, 4, 0.81], [13028, 3, 4, 0.49], [1519, 3, 12, 0.22], [214, 3, 9, 0.96], [2424, 80, 4, 1.39], [12352, 1, 4, 3.55], [7004, 1, 4, 1.29], [345, 3, 5, 0.49], [13023, 3, 6, 1.51], [13034, 3, 5, 1.37], [6952, 1, 4, 0.98], [2703, 3, 4, 2.44], [11770, 1, 4, 1.14], [6494, 1, 4, 0.47], [3430, 15, 4, 0.8], [410, 1, 4, 0.52], [432, 3, 5, 1.01], [94, 4, 4, 1.96], [13928, 1, 4, 1.15], [1492, 1, 4, 0.83], [20927, 1, 4, 0.67], [1886, 2, 4, 0.44], [3893, 1, 4, 0.47], [2331, 1, 4, 0.79], [12347, 1, 4, 0.51], [3891, 1, 4, 2.96], [3981, 3, 10, 0.29], [11811, 1, 4, 0.38], [13033, 3, 4, 0.5], [11954, 1, 4, 0.66], [9690, 1, 4, 0.76], [114, 3, 4, 0.36], [952, 4, 4, 2.24], [1309, 1, 4, 0.92], [105, 3, 4, 0.35], [1274, 1, 4, 1.18], [5584, 3, 4, 1.16], [5946, 1, 4, 0.51], [7886, 4, 6, 0.94], [5733, 2, 5, 0.43], [5812, 3, 4, 1.51], [11089, 1, 4, 1.02], [3, 2, 4, 0.91], [7708, 2, 4, 0.74], [8898, 3, 4, 2.11], [10410, 10, 8, 1.65], [7703, 2, 4, 0.74], [95, 3, 8, 2.52], [3478, 2, 4, 0.85], [10407, 10, 8, 1.65], [9507, 1, 4, 0.36], [22558, 3, 4, 0.88], [8274, 3, 4, 0.58], [3980, 4, 4, 1.39], [9082, 3, 15, 0.83], [957, 2, 4, 0.36], [5165, 2, 5, 0.84], [20555, 2, 4, 0.59], [10408, 10, 6, 0.75], [192, 3, 10, 2.2], [10398, 2, 4, 1.31], [247, 1, 4, 1.21], [963, 3, 4, 0.89], [823, 1, 4, 2.42], [13264, 29, 4, 0.48], [11603, 2, 4, 1.37], [2805, 137, 5, 1.98], [7005, 1, 4, 0.86], [5811, 3, 5, 2.0], [6630, 3, 4, 1.83], [20969, 3, 4, 0.86], [186, 3, 9, 1.23], [9491, 21, 10, 3.02], [21003, 2, 4, 0.72], [12229, 2, 4, 0.45], [141, 2, 160, 3.3], [8650, 2, 225, 5.35], [361, 2, 167, 2.01], [5491, 2, 111, 2.33], [589, 2, 163, 2.41], [11685, 2, 286, 4.02], [417, 2, 167, 2.02], [326, 2, 98, 2.49], [6935, 2, 288, 6.0], [205, 2, 111, 2.05], [1124, 2, 199, 2.9], [8648, 2, 238, 3.22], [12721, 2, 290, 4.49], [248, 1, 15, 2.19], [11838, 2, 265, 4.05], [11837, 2, 265, 2.91], [142, 2, 167, 2.0], [8915, 2, 52, 1.48], [6936, 2, 288, 5.61], [2778, 2, 161, 3.87], [8676, 2, 112, 6.0], [305, 2, 151, 3.93], [21793, 1, 254, 4.71], [22247, 2, 299, 3.59], [11835, 2, 265, 2.72], [593, 2, 243, 2.76], [616, 2, 111, 2.52], [411, 2, 115, 2.62], [990, 2, 56, 2.04], [12353, 1, 642, 6.0], [8673, 2, 304, 4.22], [2775, 2, 167, 2.23], [145, 2, 163, 3.06], [6158, 2, 279, 3.46], [11836, 2, 265, 4.64], [2055, 3, 501, 4.03], [3495, 3, 1026, 3.97], [10149, 3, 934, 2.81], [88, 10, 569, 4.74], [12344, 1, 642, 6.0], [146, 2, 163, 3.06], [75, 2, 152, 4.79], [2054, 3, 450, 3.36], [2057, 3, 501, 4.51], [10993, 2, 54, 2.81], [7705, 2, 180, 4.05], [12343, 1, 642, 6.0], [61, 3, 223, 2.0], [2424, 29, 35, 5.04], [144, 2, 163, 3.06], [7704, 2, 180, 4.05], [2859, 15, 73, 2.52], [2423, 29, 38, 3.74], [5165, 1, 51, 2.97], [2423, 80, 192, 3.71], [201, 3, 306, 4.73], [335, 3, 1375, 2.99], [308, 1, 171, 5.25], [9126, 1, 73, 4.46], [13028, 3, 154, 2.55], [1519, 3, 869, 2.5], [214, 3, 684, 3.08], [2424, 80, 174, 4.99], [12352, 1, 642, 6.0]]</t>
+  </si>
+  <si>
+    <t>[[2778, 2, 10, 0.2], [6935, 2, 7, 0.77], [305, 2, 5, 0.23], [6936, 2, 5, 1.17], [2775, 2, 4, 0.72], [145, 2, 5, 1.17], [12721, 2, 6, 0.72], [2327, 2, 5, 0.2], [361, 2, 5, 0.4], [146, 2, 5, 0.87], [8675, 2, 4, 0.73], [362, 2, 5, 0.44], [141, 2, 4, 0.4], [11681, 2, 5, 0.46], [205, 2, 5, 0.2], [8673, 2, 6, 0.73], [8676, 2, 6, 0.6], [308, 1, 6, 0.43], [1124, 2, 5, 0.79], [144, 2, 5, 1.17], [11835, 2, 4, 0.42], [5493, 2, 4, 0.45], [417, 2, 4, 0.4], [8650, 2, 5, 1.28], [11837, 2, 6, 0.3], [3, 2, 5, 1.09], [6097, 80, 5, 2.61], [589, 2, 4, 0.9], [2423, 29, 4, 1.19], [206, 2, 4, 0.64], [6097, 29, 4, 2.36], [11836, 2, 6, 0.45], [593, 2, 6, 1.3], [990, 2, 4, 0.2], [6098, 80, 4, 2.84], [88, 10, 10, 0.44], [523, 2, 4, 0.76], [13260, 29, 4, 1.4], [2423, 80, 4, 0.87], [8915, 2, 5, 0.53], [10993, 2, 4, 0.52], [6494, 1, 4, 0.47], [326, 2, 4, 0.6], [6158, 2, 5, 0.89], [75, 2, 5, 1.56], [10574, 3, 5, 0.83], [1339, 1, 4, 0.43], [335, 3, 10, 0.88], [1492, 1, 4, 0.83], [1050, 2, 4, 0.2], [411, 2, 4, 0.64], [947, 15, 4, 0.76], [151, 1, 4, 0.45], [2859, 15, 4, 0.72], [7004, 1, 4, 0.82], [1339, 3, 14, 0.18], [6496, 1, 4, 1.31], [13264, 29, 4, 0.52], [345, 3, 4, 1.71], [10149, 3, 13, 0.39], [61, 3, 5, 0.2], [7704, 2, 5, 1.79], [1049, 2, 4, 0.85], [1243, 2, 4, 1.92], [964, 15, 4, 0.84], [432, 3, 4, 1.4], [13259, 29, 5, 0.99], [22558, 3, 4, 1.98], [201, 3, 6, 1.05], [1277, 1, 4, 1.3], [5208, 3, 4, 1.35], [7705, 2, 5, 2.04], [2912, 1, 4, 1.99], [963, 3, 4, 0.39], [159, 3, 5, 0.6], [229, 1, 4, 1.04], [186, 3, 9, 0.67], [2438, 1, 4, 1.21], [21793, 1, 4, 1.38], [11738, 2, 4, 0.46], [2331, 1, 4, 1.3], [10407, 10, 6, 1.9], [3478, 2, 4, 1.58], [7706, 2, 5, 1.79], [12229, 2, 6, 0.45], [13928, 1, 4, 1.4], [1548, 1, 5, 0.84], [2703, 3, 4, 2.44], [11844, 2, 4, 2.06], [8944, 3, 4, 0.37], [11490, 1, 4, 0.83], [7036, 1, 4, 0.76], [94, 4, 4, 1.96], [159, 16, 4, 0.69], [114, 3, 4, 0.41], [11687, 2, 4, 0.79], [956, 2, 4, 0.52], [9126, 1, 4, 1.39], [10408, 10, 7, 1.66], [7708, 2, 5, 1.79], [1886, 2, 4, 0.44], [11159, 1, 7, 0.4], [10406, 10, 7, 0.92], [22125, 2, 4, 0.36], [20927, 1, 5, 0.47], [11586, 1, 6, 2.44], [11689, 2, 4, 0.77], [9065, 2, 4, 0.66], [2438, 2, 5, 1.11], [12870, 1, 4, 0.94], [11690, 2, 4, 0.53], [7005, 1, 4, 1.52], [1274, 1, 4, 1.57], [410, 1, 4, 0.52], [1699, 3, 4, 1.18], [2991, 3, 5, 2.12], [2805, 137, 5, 1.58], [21781, 2, 4, 0.22], [152, 21, 4, 0.63], [13259, 25, 4, 0.99], [4253, 1, 4, 0.43], [3495, 3, 13, 1.34], [5976, 1, 4, 2.19], [159, 1, 4, 0.67], [5584, 3, 4, 1.16], [9690, 1, 4, 0.76], [5769, 3, 6, 0.52], [7007, 1, 4, 0.73], [9239, 29, 4, 1.55], [9209, 29, 4, 1.53], [9491, 21, 10, 1.42], [11811, 1, 4, 0.38], [9239, 25, 4, 1.55], [7886, 4, 4, 0.45], [8600, 1, 4, 0.36], [5769, 1, 4, 0.46], [2778, 2, 158, 3.61], [6935, 2, 307, 3.37], [305, 2, 151, 3.96], [6936, 2, 290, 5.43], [2775, 2, 166, 2.7], [145, 2, 41, 3.46], [12721, 2, 289, 4.72], [2327, 2, 153, 4.86], [361, 2, 165, 2.08], [146, 2, 154, 3.93], [8675, 2, 298, 2.92], [362, 2, 151, 2.79], [141, 2, 165, 2.08], [11681, 2, 270, 3.74], [205, 2, 115, 2.57], [8673, 2, 291, 5.08], [8676, 2, 292, 5.81], [308, 1, 180, 3.47], [1124, 2, 197, 3.05], [144, 2, 102, 3.98], [11835, 2, 265, 3.53], [5493, 2, 117, 2.19], [417, 2, 165, 3.25], [8650, 2, 225, 6.0], [11837, 2, 265, 2.8], [3, 2, 122, 3.99], [6097, 80, 18, 6.0], [589, 2, 161, 3.07], [2423, 29, 39, 4.24], [206, 2, 86, 3.35], [11836, 2, 265, 3.97], [593, 2, 54, 4.02], [990, 2, 53, 2.31], [88, 10, 596, 3.71], [523, 2, 165, 3.02], [13260, 29, 73, 4.01], [2423, 80, 195, 3.03], [8915, 2, 153, 2.75], [10993, 2, 57, 2.31], [6494, 1, 55, 2.21], [326, 2, 94, 2.86], [6158, 2, 279, 3.46], [75, 2, 146, 4.56], [10574, 3, 272, 3.58], [1339, 1, 73, 2.26], [335, 3, 1375, 2.99], [1492, 1, 39, 2.91], [1050, 2, 107, 2.05], [411, 2, 114, 2.68], [947, 15, 44, 2.77], [151, 1, 18, 2.22], [2859, 15, 55, 3.36], [7004, 1, 83, 3.97], [1339, 3, 1760, 2.18], [6496, 1, 42, 5.33], [13264, 29, 77, 2.31], [345, 3, 315, 4.6], [10149, 3, 927, 2.79], [61, 3, 223, 2.16], [7704, 2, 159, 5.65], [1049, 2, 30, 2.45], [1243, 2, 100, 5.01], [432, 3, 306, 4.01], [13259, 29, 37, 4.14]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 6, 0.66], [141, 2, 4, 0.23], [2778, 2, 8, 0.2], [362, 2, 5, 0.23], [361, 2, 4, 0.2], [6935, 2, 10, 1.3], [12721, 2, 8, 1.21], [8676, 2, 5, 0.85], [2049, 3, 15, 0.2], [417, 2, 5, 0.2], [3, 2, 4, 1.22], [8675, 2, 4, 0.73], [22247, 2, 5, 1.25], [6936, 2, 5, 0.47], [523, 2, 5, 0.41], [305, 2, 5, 0.73], [11838, 2, 4, 0.63], [8650, 2, 5, 0.94], [2328, 2, 5, 0.79], [2776, 2, 4, 0.94], [8648, 2, 4, 1.69], [2327, 2, 4, 0.2], [616, 2, 4, 0.46], [11739, 2, 4, 0.39], [11837, 2, 4, 0.63], [411, 2, 4, 0.64], [2805, 137, 5, 2.11], [6097, 80, 5, 2.11], [11835, 2, 4, 0.74], [6097, 29, 5, 1.16], [146, 2, 4, 1.42], [10993, 2, 4, 0.38], [326, 2, 4, 0.9], [583, 2, 4, 0.76], [10149, 3, 15, 0.75], [145, 2, 4, 0.91], [11836, 2, 4, 0.63], [144, 2, 4, 1.42], [308, 1, 6, 2.02], [75, 2, 4, 1.56], [10574, 3, 6, 0.85], [6494, 1, 4, 0.47], [2057, 3, 4, 0.8], [2055, 3, 4, 0.8], [2422, 29, 4, 0.72], [2054, 3, 5, 0.82], [6098, 80, 4, 0.58], [6098, 29, 4, 0.58], [1243, 2, 4, 1.92], [8915, 2, 5, 0.78], [1886, 2, 4, 0.44], [21793, 1, 4, 1.38], [12345, 1, 4, 1.58], [12349, 1, 4, 1.01], [1492, 1, 4, 0.83], [2859, 15, 4, 0.35], [247, 1, 4, 1.18], [3478, 2, 5, 1.0], [6158, 2, 5, 0.88], [335, 3, 10, 0.88], [201, 3, 4, 0.86], [5165, 1, 4, 0.86], [7084, 3, 4, 2.17], [5208, 3, 4, 0.47], [13928, 1, 4, 1.15], [336, 15, 4, 0.37], [3934, 5, 7, 1.36], [5812, 3, 5, 2.0], [12526, 2, 4, 0.46], [192, 3, 10, 1.24], [4253, 1, 4, 0.43], [94, 4, 4, 1.96], [1703, 2, 4, 2.16], [5811, 3, 6, 2.2], [9491, 21, 10, 1.29], [186, 3, 9, 0.67], [214, 3, 10, 1.49], [11490, 1, 4, 0.38], [2821, 3, 8, 2.17], [61, 3, 4, 0.2], [11767, 1, 4, 1.09], [5813, 3, 5, 2.0], [1050, 2, 4, 0.85], [1309, 1, 4, 0.92], [8938, 2, 4, 2.21], [24722, 2, 4, 0.39], [2991, 3, 4, 2.0], [2912, 1, 4, 0.38], [10398, 2, 4, 0.37], [13260, 29, 5, 1.26], [3495, 3, 13, 1.34], [11671, 1, 4, 1.99], [2438, 2, 5, 1.11], [11771, 1, 4, 2.12], [8599, 1, 4, 3.7], [229, 1, 4, 1.37], [11811, 1, 4, 0.38], [8944, 3, 4, 0.37], [8943, 3, 5, 0.38], [1049, 2, 4, 0.85], [12764, 2, 5, 0.43], [13928, 2, 4, 1.15], [7004, 1, 4, 0.6], [7036, 1, 4, 0.76], [955, 2, 4, 0.44], [11808, 1, 4, 1.13], [10124, 1, 4, 2.17], [5584, 3, 4, 1.16], [22573, 2, 4, 0.76], [3334, 5, 4, 2.28], [8897, 3, 4, 0.45], [9690, 1, 4, 0.69], [18964, 1, 4, 1.13], [6575, 3, 4, 0.71], [20927, 1, 4, 1.92], [1523, 1, 4, 2.32], [45, 2, 4, 1.79], [8274, 3, 4, 0.87], [2438, 1, 4, 1.21], [4001, 3, 8, 0.93], [1277, 1, 4, 1.3], [11886, 2, 4, 0.84], [9239, 29, 4, 1.55], [21269, 3, 4, 2.43], [13258, 29, 4, 1.12], [105, 3, 4, 0.43], [11678, 1, 4, 1.58], [1701, 2, 4, 0.67], [3477, 2, 4, 1.1], [10181, 26, 5, 0.46], [5165, 2, 5, 0.84], [7567, 3, 4, 0.41], [9209, 29, 4, 1.51], [3984, 3, 5, 0.62], [8635, 3, 4, 0.87], [8672, 2, 292, 4.91], [141, 2, 159, 3.65], [2778, 2, 158, 3.12], [362, 2, 144, 3.12], [361, 2, 166, 2.8], [6935, 2, 283, 6.0], [12721, 2, 291, 5.26], [8676, 2, 292, 4.13], [2049, 3, 364, 2.18], [417, 2, 166, 2.8], [3, 2, 123, 4.33], [8675, 2, 304, 3.12], [22247, 2, 291, 4.86], [6936, 2, 298, 3.21], [523, 2, 159, 3.55], [305, 2, 150, 3.92], [11838, 2, 265, 4.64], [8650, 2, 237, 4.75], [2328, 2, 153, 3.91], [2776, 2, 166, 3.64], [8648, 2, 237, 4.56], [2327, 2, 153, 4.01], [616, 2, 117, 2.21], [11739, 2, 61, 2.58], [11837, 2, 265, 4.64], [411, 2, 115, 2.79], [2805, 137, 180, 5.95], [6097, 80, 37, 6.0], [11835, 2, 265, 3.47], [6097, 29, 35, 3.8], [146, 2, 61, 3.73], [10993, 2, 57, 2.04], [326, 2, 94, 3.16], [583, 2, 96, 2.84], [10149, 3, 934, 4.54], [145, 2, 163, 3.06], [11836, 2, 265, 4.64], [144, 2, 61, 3.73], [308, 1, 175, 5.38], [75, 2, 152, 4.31], [6494, 1, 55, 2.21], [2057, 3, 501, 4.51], [2055, 3, 501, 4.03], [2422, 29, 39, 3.15], [2054, 3, 450, 4.0], [6098, 80, 80, 3.32], [6098, 29, 40, 3.32], [1243, 2, 100, 5.01], [8915, 2, 76, 2.76], [1886, 2, 167, 2.16], [21793, 1, 247, 4.35], [12345, 1, 632, 4.42], [12349, 1, 632, 4.44], [1492, 1, 39, 2.91], [2859, 15, 73, 2.71], [247, 1, 93, 5.03], [3478, 2, 79, 3.63], [6158, 2, 277, 3.44], [335, 3, 1375, 2.99], [201, 3, 315, 3.58], [5165, 1, 51, 2.97], [7084, 3, 133, 5.49], [5208, 3, 367, 4.38], [13928, 1, 50, 3.59], [3934, 5, 554, 4.02]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 7, 0.77], [305, 2, 4, 0.2], [8650, 2, 4, 0.46], [2778, 2, 5, 0.2], [8672, 2, 7, 2.86], [143, 2, 6, 2.15], [362, 2, 4, 0.23], [6936, 2, 5, 1.01], [145, 2, 4, 0.5], [11837, 2, 4, 0.84], [361, 2, 4, 0.38], [417, 2, 4, 0.38], [205, 2, 4, 0.56], [75, 2, 5, 0.97], [11681, 2, 5, 0.71], [1124, 2, 5, 0.57], [589, 2, 6, 0.2], [146, 2, 4, 0.57], [11737, 2, 4, 0.53], [8648, 2, 4, 1.1], [12721, 2, 6, 0.48], [523, 2, 4, 0.38], [8673, 2, 6, 0.2], [1504, 2, 5, 0.36], [8853, 2, 5, 1.67], [308, 1, 5, 1.23], [206, 2, 4, 0.82], [326, 2, 6, 0.85], [11835, 2, 6, 0.36], [990, 2, 4, 0.48], [8675, 2, 5, 1.2], [88, 10, 10, 0.19], [8915, 2, 6, 1.39], [144, 2, 5, 0.91], [1005, 2, 5, 0.89], [434, 2, 5, 0.3], [11739, 2, 4, 0.51], [142, 2, 4, 0.38], [8676, 2, 4, 2.16], [2424, 29, 4, 0.62], [9507, 3, 4, 0.35], [6158, 2, 7, 0.2], [7704, 2, 4, 1.25], [2423, 29, 4, 1.44], [11836, 2, 4, 0.84], [2424, 80, 4, 1.11], [7705, 2, 4, 1.9], [11738, 2, 4, 0.44], [1413, 15, 5, 0.2], [7706, 2, 4, 1.23], [2423, 80, 4, 1.04], [3478, 2, 4, 2.03], [7004, 1, 4, 1.56], [944, 15, 5, 0.2], [2859, 15, 4, 1.62], [2054, 3, 4, 1.98], [74, 1, 4, 1.34], [3429, 15, 4, 0.2], [10149, 3, 13, 1.01], [10993, 2, 4, 0.4], [2055, 3, 4, 1.98], [18964, 1, 4, 1.38], [12343, 1, 4, 4.0], [94, 4, 4, 2.21], [13928, 1, 4, 1.4], [13028, 3, 4, 0.49], [13034, 3, 6, 0.9], [2057, 3, 4, 1.98], [7084, 3, 4, 0.48], [11919, 1, 4, 0.34], [411, 2, 4, 1.26], [6097, 80, 4, 0.72], [11089, 1, 4, 0.91], [7886, 4, 5, 0.44], [3893, 1, 4, 1.77], [1050, 2, 4, 0.85], [7036, 1, 4, 0.43], [7707, 2, 4, 1.25], [563, 2, 4, 0.2], [3891, 1, 4, 1.61], [6494, 1, 4, 0.47], [6630, 3, 5, 1.8], [192, 3, 13, 1.26], [21793, 1, 4, 1.54], [1243, 2, 6, 0.95], [8274, 3, 5, 0.83], [7708, 2, 4, 1.5], [2912, 1, 4, 0.35], [13023, 3, 5, 0.44], [11581, 29, 4, 0.87], [3889, 1, 4, 1.57], [9126, 1, 4, 0.99], [159, 3, 5, 0.6], [13033, 3, 5, 0.8], [11490, 1, 4, 0.73], [5208, 3, 6, 1.85], [1049, 2, 4, 0.2], [12229, 2, 5, 0.45], [5940, 3, 4, 0.88], [3495, 3, 13, 1.34], [12349, 1, 4, 2.14], [22558, 3, 4, 0.88], [5165, 1, 4, 0.87], [2331, 1, 4, 1.18], [201, 3, 4, 0.86], [83, 2, 4, 1.0], [332, 2, 4, 0.49], [229, 1, 4, 1.04], [214, 3, 10, 1.25], [951, 4, 4, 1.81], [1309, 1, 4, 0.92], [6496, 1, 4, 1.31], [247, 1, 4, 1.21], [2805, 137, 5, 2.25], [5812, 3, 4, 1.01], [7885, 4, 4, 0.56], [21269, 3, 4, 4.0], [215, 4, 4, 1.56], [9690, 1, 5, 1.08], [942, 3, 4, 0.55], [8898, 3, 4, 1.65], [335, 3, 11, 0.62], [20555, 2, 4, 0.44], [11914, 1, 4, 0.86], [10406, 10, 9, 1.72], [1703, 2, 4, 2.12], [9827, 3, 4, 0.39], [4940, 1, 4, 0.2], [23961, 3, 4, 3.83], [8635, 3, 4, 0.57], [5811, 3, 5, 0.5], [24257, 1, 4, 1.42], [11770, 1, 4, 1.14], [9491, 21, 11, 1.36], [186, 3, 9, 1.23], [3934, 5, 7, 1.36], [6935, 2, 307, 3.37], [305, 2, 150, 3.42], [8650, 2, 250, 4.6], [2778, 2, 158, 3.29], [8672, 2, 288, 5.35], [143, 2, 60, 3.95], [362, 2, 151, 2.36], [6936, 2, 288, 6.0], [145, 2, 154, 3.71], [11837, 2, 264, 4.78], [361, 2, 165, 3.07], [417, 2, 165, 3.07], [205, 2, 115, 2.39], [75, 2, 148, 4.82], [11681, 2, 270, 3.74], [1124, 2, 199, 2.9], [589, 2, 156, 2.06], [146, 2, 154, 3.93], [11737, 2, 38, 2.96], [8648, 2, 237, 3.43], [12721, 2, 290, 4.86], [523, 2, 165, 2.52], [8673, 2, 291, 5.08], [1504, 2, 223, 2.79], [8853, 2, 288, 5.91], [308, 1, 68, 5.6], [206, 2, 86, 3.53], [326, 2, 94, 3.24], [11835, 2, 264, 3.22], [990, 2, 56, 2.23], [8675, 2, 298, 4.91], [88, 10, 576, 5.1], [8915, 2, 126, 3.92], [144, 2, 154, 3.88], [1005, 2, 28, 3.58], [434, 2, 108, 2.47], [11739, 2, 61, 2.29], [142, 2, 165, 3.07], [8676, 2, 298, 6.0], [2424, 29, 35, 3.65], [6158, 2, 267, 3.83], [7704, 2, 179, 5.09], [2423, 29, 37, 4.08], [11836, 2, 264, 3.89], [2424, 80, 172, 4.0], [11738, 2, 61, 2.16], [1413, 15, 26, 2.93], [7706, 2, 187, 3.68], [2423, 80, 188, 3.66], [3478, 2, 20, 4.66], [7004, 1, 82, 4.31], [944, 15, 45, 2.59], [2054, 3, 495, 5.12], [74, 1, 199, 3.89], [3429, 15, 28, 2.0], [10149, 3, 934, 3.1], [10993, 2, 54, 2.68], [2055, 3, 495, 5.19], [18964, 1, 18, 3.41], [12343, 1, 638, 6.0], [94, 4, 123, 5.56], [13928, 1, 48, 4.01], [13028, 3, 154, 2.55], [13034, 3, 599, 4.8]]</t>
+  </si>
+  <si>
+    <t>[[589, 2, 5, 0.2], [141, 2, 4, 0.2], [2327, 2, 5, 0.39], [2778, 2, 4, 0.2], [6936, 2, 6, 0.44], [362, 2, 4, 0.31], [326, 2, 4, 0.4], [305, 2, 4, 1.26], [205, 2, 4, 0.47], [2775, 2, 4, 0.2], [1446, 2, 4, 1.79], [8649, 2, 5, 0.64], [8853, 2, 5, 0.71], [593, 2, 6, 0.2], [206, 2, 4, 1.44], [3840, 1, 4, 0.4], [11581, 29, 4, 0.81], [1429, 2, 4, 1.84], [523, 2, 5, 0.54], [21793, 1, 5, 0.61], [413, 1, 5, 0.81], [412, 1, 4, 1.55], [5165, 1, 4, 1.2], [1124, 2, 5, 0.79], [159, 3, 5, 0.44], [7036, 1, 5, 1.53], [615, 2, 4, 0.42], [201, 3, 6, 0.41], [8089, 1, 4, 0.36], [248, 1, 4, 0.23], [145, 2, 4, 1.42], [6952, 1, 4, 1.04], [345, 3, 6, 0.51], [6097, 80, 5, 2.38], [146, 2, 4, 0.78], [10993, 2, 5, 0.48], [2050, 3, 5, 1.22], [24664, 2, 17, 0.75], [144, 2, 5, 0.86], [2055, 3, 4, 0.41], [7005, 1, 4, 0.82], [2912, 1, 4, 1.2], [11770, 1, 4, 1.02], [3891, 1, 4, 0.42], [2057, 3, 4, 0.46], [432, 3, 4, 1.65], [997, 2, 5, 0.2], [998, 2, 5, 0.2], [6158, 2, 4, 0.36], [3893, 1, 4, 0.49], [6097, 29, 4, 2.41], [5165, 2, 7, 0.91], [12870, 1, 4, 1.19], [2424, 80, 4, 1.76], [10149, 3, 17, 1.01], [11772, 1, 4, 1.12], [6098, 80, 4, 1.39], [20927, 1, 4, 1.11], [9372, 1, 4, 0.98], [7885, 4, 4, 0.74], [11089, 1, 4, 0.57], [10574, 3, 6, 0.57], [5208, 3, 5, 0.94], [1492, 1, 5, 0.2], [3334, 5, 4, 1.14], [4032, 29, 5, 0.8], [346, 3, 4, 0.92], [11671, 1, 4, 2.02], [22316, 3, 4, 0.5], [13028, 3, 5, 1.11], [1519, 3, 15, 0.22], [3576, 25, 5, 1.76], [1490, 1, 4, 0.72], [12304, 1, 4, 1.84], [3889, 1, 4, 1.16], [2912, 2, 5, 1.2], [11583, 29, 4, 0.24], [13034, 3, 6, 1.27], [972, 3, 5, 1.01], [214, 3, 9, 0.64], [5151, 2, 4, 0.45], [229, 1, 4, 2.45], [11426, 25, 4, 1.3], [161, 3, 6, 1.45], [346, 1, 4, 1.18], [2331, 1, 4, 1.04], [5812, 3, 6, 2.01], [11490, 1, 4, 0.57], [8677, 3, 5, 0.5], [9289, 29, 4, 1.27], [1701, 2, 4, 1.53], [13893, 2, 4, 1.34], [75, 2, 5, 0.67], [10, 2, 4, 0.2], [1309, 1, 4, 0.41], [2805, 137, 4, 1.58], [3575, 25, 4, 1.11], [2160, 68, 4, 1.02], [11404, 2, 4, 0.45], [12764, 2, 6, 0.2], [13023, 3, 5, 1.51], [159, 1, 4, 0.45], [4253, 1, 4, 0.71], [5209, 3, 4, 0.89], [9069, 1, 4, 0.88], [957, 2, 5, 0.91], [6494, 1, 4, 0.46], [2438, 2, 5, 1.37], [9971, 2, 4, 0.69], [11813, 1, 4, 1.85], [14037, 3, 4, 1.22], [192, 3, 8, 1.79], [9967, 2, 4, 0.69], [4033, 29, 4, 1.6], [9491, 21, 9, 1.36], [159, 16, 4, 0.47], [24257, 1, 4, 1.47], [8943, 3, 5, 0.2], [2878, 1, 4, 1.43], [11150, 2, 5, 0.45], [5584, 3, 4, 0.8], [9964, 2, 4, 1.15], [105, 3, 4, 1.08], [22317, 3, 5, 0.2], [8283, 2, 5, 1.11], [10609, 1, 4, 0.48], [9965, 2, 4, 0.69], [10407, 10, 7, 2.02], [4076, 3, 4, 1.75], [4586, 10, 13, 0.8], [3495, 3, 9, 1.44], [335, 3, 12, 0.84], [14041, 3, 4, 0.49], [24258, 1, 4, 0.81], [7324, 1, 4, 0.56], [9910, 25, 4, 0.37], [7567, 3, 4, 1.06], [589, 2, 73, 2.68], [141, 2, 174, 3.26], [2327, 2, 153, 3.55], [2778, 2, 175, 2.68], [6936, 2, 280, 6.0], [362, 2, 142, 3.7], [326, 2, 110, 2.49], [305, 2, 175, 3.66], [205, 2, 117, 2.13], [2775, 2, 175, 2.68], [1446, 2, 36, 4.13], [8649, 2, 235, 4.05], [8853, 2, 329, 3.26], [593, 2, 243, 2.78], [3840, 1, 81, 1.8], [11581, 29, 74, 2.79], [1429, 2, 36, 4.38], [523, 2, 174, 3.66], [21793, 1, 268, 4.57], [413, 1, 92, 3.04], [412, 1, 98, 4.21], [5165, 1, 48, 4.02], [1124, 2, 197, 3.92], [159, 3, 424, 1.88], [7036, 1, 129, 4.43], [615, 2, 130, 2.04], [201, 3, 202, 4.66], [8089, 1, 82, 3.1], [248, 1, 26, 2.05], [6952, 1, 212, 5.71], [345, 3, 302, 4.35], [6097, 80, 69, 6.0], [146, 2, 181, 2.73], [24664, 2, 336, 2.94], [144, 2, 154, 2.95], [7005, 1, 85, 2.81], [2912, 1, 56, 3.59], [11770, 1, 244, 4.39], [3891, 1, 146, 2.49], [2057, 3, 172, 1.79], [432, 3, 320, 4.42], [997, 2, 259, 3.14], [998, 2, 245, 4.57], [6158, 2, 310, 1.92], [3893, 1, 125, 2.77], [5165, 2, 405, 2.95], [12870, 1, 155, 3.52], [2424, 80, 179, 4.62], [10149, 3, 884, 2.96], [11772, 1, 238, 5.34], [6098, 80, 54, 5.34], [20927, 1, 75, 3.34], [9372, 1, 273, 3.13], [11089, 1, 180, 3.24], [10574, 3, 548, 2.95], [5208, 3, 328, 3.92], [1492, 1, 13, 2.46], [3334, 5, 191, 4.14], [4032, 29, 97, 3.06], [11671, 1, 337, 5.19], [22316, 3, 378, 2.18], [13028, 3, 36, 4.99], [1519, 3, 965, 2.5]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 8, 0.97], [305, 2, 5, 0.75], [6935, 2, 8, 1.19], [141, 2, 5, 0.39], [2049, 3, 15, 0.2], [12721, 2, 6, 0.97], [205, 2, 4, 0.2], [130, 1, 4, 0.51], [589, 2, 8, 0.2], [151, 1, 4, 0.4], [1776, 1, 4, 0.46], [362, 2, 5, 1.07], [146, 2, 4, 0.58], [145, 2, 4, 0.39], [593, 2, 6, 0.59], [8915, 2, 6, 0.2], [2328, 2, 5, 0.3], [1777, 1, 5, 0.68], [6936, 2, 6, 0.92], [3, 2, 4, 1.01], [22247, 2, 5, 0.95], [8675, 2, 6, 0.72], [248, 1, 4, 0.37], [1007, 2, 7, 0.2], [2778, 2, 5, 0.2], [88, 10, 10, 0.44], [10, 2, 6, 0.2], [8677, 3, 6, 1.81], [412, 1, 4, 0.91], [10149, 3, 17, 1.32], [2054, 3, 7, 0.59], [11681, 2, 5, 1.12], [10825, 21, 9, 1.14], [13028, 3, 5, 0.5], [361, 2, 4, 0.65], [413, 1, 4, 1.45], [7004, 1, 4, 0.4], [2055, 3, 5, 0.79], [2057, 3, 5, 0.79], [8676, 2, 4, 0.97], [411, 2, 4, 0.74], [410, 1, 4, 0.61], [308, 1, 5, 0.72], [61, 3, 4, 0.71], [6158, 2, 6, 0.65], [432, 3, 5, 0.39], [1124, 2, 6, 0.2], [45, 2, 4, 1.37], [7005, 1, 4, 0.4], [5081, 2, 8, 0.2], [94, 4, 5, 2.4], [167, 3, 5, 1.1], [9827, 3, 4, 0.2], [5812, 3, 6, 2.26], [3495, 3, 17, 1.31], [168, 3, 6, 0.29], [3893, 1, 4, 0.28], [12870, 1, 4, 2.58], [3889, 1, 4, 0.28], [10574, 3, 5, 1.69], [3891, 1, 4, 0.28], [8651, 2, 4, 1.45], [335, 3, 13, 1.1], [6097, 80, 4, 2.61], [95, 3, 17, 0.32], [20256, 2, 4, 0.48], [6098, 29, 4, 1.77], [11737, 2, 4, 0.97], [1490, 1, 4, 0.93], [214, 3, 9, 0.44], [346, 1, 5, 0.56], [998, 2, 4, 1.52], [20927, 1, 5, 0.61], [9069, 1, 5, 0.84], [20498, 1, 5, 0.55], [1622, 1, 5, 0.88], [8898, 3, 6, 2.42], [6098, 80, 4, 2.48], [9760, 29, 4, 0.24], [1070, 7, 8, 0.66], [14017, 3, 5, 0.2], [9829, 3, 4, 1.06], [997, 2, 4, 1.04], [13260, 29, 4, 0.85], [22554, 10, 11, 0.23], [13034, 3, 9, 1.01], [1243, 2, 4, 0.79], [20498, 3, 6, 0.6], [346, 3, 5, 0.52], [345, 3, 4, 0.58], [336, 15, 4, 0.35], [5513, 2, 4, 0.57], [22317, 3, 8, 0.26], [996, 2, 4, 1.39], [5946, 1, 4, 0.28], [5811, 3, 4, 2.01], [5813, 3, 5, 1.31], [9691, 1, 5, 1.91], [5086, 1, 8, 2.44], [8945, 3, 5, 0.84], [995, 2, 4, 1.56], [952, 4, 5, 2.48], [11085, 2, 5, 0.45], [1080, 3, 4, 0.38], [1413, 15, 4, 0.2], [8557, 3, 4, 0.2], [3049, 3, 6, 1.73], [20486, 3, 8, 2.5], [9082, 3, 14, 0.83], [2424, 80, 4, 1.76], [4076, 3, 4, 2.94], [1703, 2, 6, 1.38], [215, 4, 5, 3.57], [9081, 3, 8, 0.54], [823, 1, 4, 0.48], [20486, 1, 4, 0.51], [8274, 3, 4, 0.53], [8943, 3, 5, 0.37], [13023, 3, 5, 1.48], [2854, 21, 13, 0.44], [11510, 3, 5, 0.46], [23611, 3, 4, 0.42], [470, 1, 4, 0.37], [14018, 3, 4, 0.42], [6497, 1, 5, 1.25], [8104, 1, 5, 0.2], [3047, 3, 5, 1.0], [18, 1, 4, 0.38], [2878, 1, 4, 1.57], [1414, 15, 4, 0.2], [20969, 3, 5, 1.12], [12923, 1, 4, 0.25], [10529, 29, 5, 0.48], [18964, 1, 4, 0.9], [13484, 1, 4, 1.93], [10780, 10, 4, 2.28], [8672, 2, 253, 5.32], [305, 2, 131, 3.89], [6935, 2, 283, 5.53], [141, 2, 137, 3.31], [2049, 3, 486, 2.4], [12721, 2, 267, 2.73], [205, 2, 97, 2.73], [130, 1, 31, 2.02], [589, 2, 145, 1.48], [151, 1, 46, 1.94], [1776, 1, 113, 2.89], [362, 2, 126, 3.69], [146, 2, 152, 3.07], [145, 2, 144, 1.86], [593, 2, 223, 3.12], [8915, 2, 180, 1.88], [2328, 2, 150, 3.41], [1777, 1, 107, 3.88], [6936, 2, 283, 4.87], [3, 2, 124, 3.17], [22247, 2, 267, 3.3], [8675, 2, 295, 3.11], [1007, 2, 240, 1.94], [2778, 2, 154, 3.46], [88, 10, 529, 2.92], [10, 2, 99, 2.98], [8677, 3, 261, 5.48], [412, 1, 74, 4.07], [10149, 3, 768, 5.65], [2054, 3, 417, 4.52], [11681, 2, 277, 3.87], [10825, 21, 608, 2.95], [13028, 3, 131, 3.33], [361, 2, 137, 2.45], [413, 1, 77, 3.74], [7004, 1, 71, 3.05], [2055, 3, 440, 2.87], [2057, 3, 440, 4.67], [8676, 2, 267, 2.88], [411, 2, 97, 3.17], [410, 1, 103, 2.95], [308, 1, 150, 3.59], [61, 3, 219, 3.1], [6158, 2, 243, 3.8], [432, 3, 268, 3.19], [1124, 2, 166, 2.14], [45, 2, 98, 6.0], [7005, 1, 71, 3.05], [5081, 2, 171, 3.4], [94, 4, 106, 4.95], [167, 3, 213, 3.88], [9827, 3, 78, 3.28], [3495, 3, 855, 4.69], [168, 3, 360, 3.87], [3893, 1, 109, 2.17], [3889, 1, 109, 2.17], [10574, 3, 519, 4.8], [3891, 1, 109, 2.17], [8651, 2, 228, 3.74], [6097, 80, 36, 5.79], [95, 3, 932, 3.36], [20256, 2, 98, 2.06], [11737, 2, 51, 2.82], [1490, 1, 52, 2.74]]</t>
+  </si>
+  <si>
+    <t>[[305, 2, 7, 1.32], [8672, 2, 10, 2.68], [3, 2, 9, 2.42], [589, 2, 11, 0.8], [6935, 2, 22, 2.89], [2049, 3, 22, 1.93], [130, 1, 9, 1.68], [205, 2, 7, 0.96], [12721, 2, 10, 1.78], [144, 2, 7, 1.42], [75, 2, 9, 1.86], [145, 2, 7, 1.0], [1776, 1, 7, 1.17], [8915, 2, 12, 0.5], [593, 2, 12, 2.08], [151, 1, 7, 0.71], [2778, 2, 13, 1.07], [1777, 1, 7, 1.85], [8648, 2, 17, 5.0], [6936, 2, 12, 2.57], [2328, 2, 9, 1.55], [5151, 2, 7, 1.15], [147, 1, 7, 2.38], [88, 10, 21, 1.98], [141, 2, 7, 2.52], [83, 2, 7, 0.85], [74, 1, 7, 3.53], [2054, 3, 7, 1.03], [10825, 21, 13, 2.02], [362, 2, 7, 2.15], [1007, 2, 9, 0.73], [2057, 3, 7, 0.89], [345, 3, 11, 0.97], [2055, 3, 7, 0.81], [432, 3, 7, 1.15], [7005, 1, 7, 0.73], [21793, 1, 7, 4.02], [22247, 2, 13, 2.72], [57, 1, 9, 1.09], [410, 1, 7, 2.89], [3889, 1, 7, 0.8], [201, 3, 11, 0.87], [308, 1, 7, 2.55], [11234, 2, 8, 2.46], [12870, 1, 14, 5.0], [10149, 3, 21, 1.67], [7036, 1, 7, 2.49], [1124, 2, 14, 0.68], [35, 1, 7, 3.4], [9827, 3, 7, 1.6], [167, 3, 9, 2.77], [5081, 2, 11, 1.33], [94, 4, 7, 3.02], [8677, 3, 9, 1.26], [1654, 2, 7, 0.92], [411, 2, 7, 1.12], [1504, 2, 7, 2.22], [3891, 1, 7, 2.38], [79, 1, 7, 0.94], [8676, 2, 7, 1.7], [3893, 1, 7, 2.63], [168, 3, 11, 3.72], [2336, 3, 9, 1.96], [5812, 3, 8, 1.92], [9760, 29, 7, 0.92], [23, 1, 7, 2.91], [1490, 1, 7, 0.92], [412, 1, 7, 2.68], [6158, 2, 10, 1.12], [20927, 1, 7, 2.73], [45, 2, 7, 2.72], [1767, 25, 7, 1.14], [361, 2, 7, 2.52], [5208, 3, 13, 3.29], [8651, 2, 7, 3.23], [335, 3, 20, 0.92], [95, 3, 27, 0.67], [9069, 1, 7, 1.46], [25, 1, 7, 2.91], [346, 1, 7, 2.76], [1622, 1, 7, 3.2], [214, 3, 18, 0.7], [8674, 2, 7, 1.7], [2049, 1, 7, 1.19], [21269, 3, 7, 3.21], [413, 1, 7, 2.42], [998, 2, 7, 2.35], [34, 1, 7, 3.56], [3495, 3, 17, 2.26], [856, 1, 9, 0.68], [8898, 3, 9, 2.78], [1070, 7, 15, 0.84], [11116, 1, 7, 3.42], [1766, 25, 7, 3.12], [9691, 1, 7, 3.89], [20498, 1, 7, 2.72], [346, 3, 7, 1.82], [5946, 1, 7, 2.23], [38, 1, 7, 3.56], [9829, 3, 7, 2.25], [14017, 3, 7, 1.75], [974, 3, 9, 2.39], [1091, 1, 7, 1.75], [152, 21, 7, 1.5], [20498, 3, 10, 1.9], [39, 1, 7, 3.56], [82, 2, 7, 2.52], [9372, 1, 7, 3.6], [1080, 3, 9, 1.34], [14037, 3, 9, 1.09], [5086, 1, 7, 4.7], [996, 2, 7, 4.7], [1767, 2, 7, 1.71], [5209, 3, 7, 3.29], [192, 3, 20, 4.76], [5811, 3, 7, 3.8], [3048, 3, 7, 3.93], [9828, 3, 7, 2.93], [972, 3, 10, 2.0], [24, 1, 7, 2.21], [13260, 29, 7, 2.71], [10780, 10, 7, 3.58], [5513, 2, 9, 1.86], [5813, 3, 7, 3.55], [4203, 1, 9, 1.06], [952, 4, 7, 4.41], [202, 2, 7, 3.38], [3981, 3, 17, 2.74], [8945, 3, 8, 2.64], [13034, 3, 8, 2.63], [36, 1, 7, 3.56], [2878, 1, 7, 1.97], [336, 15, 7, 0.67], [3900, 3, 7, 0.94], [955, 2, 7, 0.69], [9082, 3, 29, 2.75], [1490, 1, 61, 1.99], [412, 1, 84, 4.61], [6158, 2, 266, 3.41], [20927, 1, 81, 3.8], [45, 2, 108, 4.78], [1767, 25, 194, 3.42], [361, 2, 156, 3.59], [5208, 3, 655, 4.36], [8651, 2, 260, 4.3], [335, 3, 1322, 2.77], [95, 3, 1101, 3.56], [9069, 1, 137, 2.7], [25, 1, 132, 3.98], [1622, 1, 123, 4.27], [214, 3, 661, 1.95], [8674, 2, 306, 2.77], [21269, 3, 344, 4.28], [413, 1, 87, 4.11], [998, 2, 256, 3.42], [34, 1, 113, 4.63], [3495, 3, 975, 4.43], [856, 1, 37, 1.75], [8898, 3, 285, 5.33], [1070, 7, 595, 3.4], [11116, 1, 27, 4.05], [1766, 25, 189, 4.19], [9691, 1, 76, 4.96], [20498, 1, 99, 4.36], [346, 3, 693, 3.06], [5946, 1, 125, 4.03], [38, 1, 113, 4.63], [9829, 3, 80, 3.32], [14017, 3, 225, 3.39], [974, 3, 150, 4.2], [1091, 1, 40, 2.75], [20498, 3, 589, 3.94], [39, 1, 113, 4.63], [9372, 1, 231, 5.4], [1080, 3, 134, 3.64], [5086, 1, 213, 5.77], [996, 2, 256, 5.77], [1767, 2, 35, 3.19], [5209, 3, 655, 4.36], [192, 3, 1567, 5.84], [5811, 3, 201, 4.69], [3048, 3, 273, 5.73], [9828, 3, 89, 4.0], [972, 3, 601, 3.68], [24, 1, 114, 3.64], [13260, 29, 81, 3.78], [10780, 10, 434, 5.64], [4203, 1, 50, 3.11], [952, 4, 77, 5.48], [202, 2, 73, 4.42], [3981, 3, 1716, 3.78], [8945, 3, 498, 3.64], [13034, 3, 598, 4.22], [36, 1, 129, 4.63], [2878, 1, 95, 3.04], [3900, 3, 47, 2.01], [955, 2, 128, 1.76], [9082, 3, 2905, 3.83]]</t>
+  </si>
+  <si>
+    <t>[[305, 2, 9, 1.32], [589, 2, 10, 1.45], [6935, 2, 11, 4.09], [2778, 2, 14, 1.18], [144, 2, 7, 1.04], [8915, 2, 10, 1.06], [2328, 2, 14, 1.39], [6936, 2, 7, 3.27], [8648, 2, 14, 3.54], [205, 2, 7, 1.6], [8650, 2, 7, 3.13], [593, 2, 14, 2.27], [145, 2, 7, 1.67], [146, 2, 7, 1.4], [326, 2, 7, 1.02], [7036, 1, 9, 3.79], [88, 10, 29, 2.1], [2776, 2, 9, 2.0], [141, 2, 7, 0.72], [7004, 1, 7, 2.1], [1446, 2, 7, 1.5], [1124, 2, 7, 1.59], [206, 2, 7, 1.83], [142, 2, 9, 2.28], [2912, 1, 7, 3.71], [11685, 2, 9, 1.76], [10993, 2, 9, 1.0], [7886, 4, 7, 0.8], [5165, 1, 7, 2.62], [12870, 1, 11, 4.07], [3893, 1, 7, 0.71], [2055, 3, 7, 1.06], [1622, 1, 7, 1.38], [417, 2, 7, 2.02], [21793, 1, 7, 1.7], [2054, 3, 7, 3.41], [3889, 1, 7, 1.13], [7573, 1, 14, 5.0], [523, 2, 7, 1.19], [7885, 4, 9, 1.19], [61, 3, 9, 2.43], [9372, 1, 7, 3.88], [10, 2, 9, 1.14], [3891, 1, 7, 1.21], [10149, 3, 21, 2.82], [5208, 3, 14, 0.79], [75, 2, 7, 3.31], [9491, 21, 29, 0.95], [20927, 1, 7, 2.86], [997, 2, 7, 4.68], [12721, 2, 10, 3.06], [35, 1, 9, 3.23], [3, 2, 9, 1.84], [5165, 2, 8, 2.19], [11234, 2, 7, 2.7], [33, 1, 7, 3.17], [998, 2, 7, 3.08], [94, 4, 7, 3.76], [22247, 2, 7, 2.77], [972, 3, 10, 2.36], [5076, 1, 9, 2.68], [6158, 2, 11, 1.56], [34, 1, 7, 3.25], [2805, 137, 9, 4.69], [2912, 2, 12, 3.56], [2424, 80, 7, 2.78], [38, 1, 7, 3.3], [8104, 1, 7, 3.87], [8898, 3, 7, 5.0], [12212, 29, 11, 0.9], [39, 1, 7, 3.27], [13928, 1, 7, 2.54], [11952, 1, 7, 1.52], [1414, 15, 7, 0.75], [24257, 1, 7, 1.25], [7567, 3, 7, 3.04], [2424, 29, 7, 2.71], [3495, 3, 18, 3.02], [9691, 1, 7, 2.83], [11770, 1, 7, 4.09], [192, 3, 15, 2.09], [3048, 3, 7, 1.77], [11490, 1, 7, 1.37], [995, 2, 7, 4.0], [5946, 1, 7, 1.9], [23961, 3, 7, 3.68], [411, 2, 7, 2.12], [11772, 1, 7, 3.6], [632, 11, 21, 1.29], [161, 3, 9, 4.12], [1703, 2, 7, 2.81], [10407, 10, 12, 3.01], [74, 1, 7, 4.99], [13023, 3, 7, 2.91], [1523, 1, 7, 1.08], [4253, 1, 7, 0.75], [5164, 1, 7, 1.99], [2331, 1, 7, 3.16], [1519, 3, 20, 0.83], [21269, 3, 7, 3.95], [1274, 1, 7, 1.55], [10410, 10, 16, 2.97], [3430, 15, 7, 2.93], [12764, 2, 8, 1.03], [1492, 1, 7, 1.14], [972, 1, 7, 2.36], [11236, 2, 7, 1.19], [214, 3, 26, 1.0], [24258, 1, 7, 2.51], [6097, 29, 7, 2.5], [6097, 80, 7, 2.91], [1080, 3, 7, 2.78], [13893, 2, 7, 2.25], [10780, 10, 7, 4.08], [3047, 3, 7, 3.16], [8674, 2, 7, 4.14], [9081, 3, 12, 3.28], [13928, 2, 7, 2.54], [3576, 29, 7, 3.21], [10408, 10, 10, 2.9], [12662, 1, 7, 1.44], [1243, 2, 7, 0.79], [13034, 3, 7, 2.36], [13264, 29, 7, 0.9], [2436, 4, 7, 3.38], [45, 2, 7, 2.25], [2438, 2, 8, 2.33], [11813, 1, 7, 1.66], [3334, 5, 7, 2.7], [7704, 2, 7, 1.67], [20486, 3, 7, 2.91], [1277, 1, 7, 3.27], [11812, 1, 7, 0.92], [8659, 1, 7, 1.64], [10936, 2, 7, 3.04], [8104, 1, 222, 5.07], [8898, 3, 295, 6.0], [12212, 29, 132, 3.28], [39, 1, 127, 4.47], [13928, 1, 54, 3.74], [11952, 1, 207, 2.72], [1414, 15, 114, 1.95], [24257, 1, 139, 2.45], [7567, 3, 69, 4.46], [2424, 29, 34, 3.91], [3495, 3, 951, 4.23], [9691, 1, 79, 4.03], [11770, 1, 219, 5.29], [192, 3, 1454, 3.29], [3048, 3, 282, 2.97], [11490, 1, 118, 2.82], [995, 2, 272, 5.2], [5946, 1, 144, 3.1], [23961, 3, 340, 4.88], [411, 2, 107, 3.32], [11772, 1, 233, 4.79], [632, 11, 855, 2.49], [161, 3, 754, 5.32], [1703, 2, 162, 4.01], [74, 1, 213, 6.0], [13023, 3, 683, 4.12], [1523, 1, 54, 2.28], [4253, 1, 199, 1.95], [5164, 1, 54, 3.19], [2331, 1, 121, 4.36], [1519, 3, 566, 1.72], [21269, 3, 318, 5.16], [1274, 1, 81, 2.75], [12764, 2, 855, 2.24], [1492, 1, 43, 2.34], [972, 1, 114, 3.57], [11236, 2, 255, 2.39], [214, 3, 604, 2.18], [6097, 29, 35, 3.7], [6097, 80, 69, 4.11], [1080, 3, 125, 4.12], [13893, 2, 316, 3.45], [10780, 10, 416, 5.57], [3047, 3, 265, 4.84], [8674, 2, 291, 5.34], [9081, 3, 535, 4.47], [13928, 2, 27, 3.74], [3576, 29, 8, 3.88], [12662, 1, 71, 2.64], [1243, 2, 111, 1.99], [13034, 3, 680, 3.56], [13264, 29, 85, 2.1], [2436, 4, 128, 4.59], [45, 2, 122, 3.45], [2438, 2, 727, 3.53], [11813, 1, 326, 2.86], [3334, 5, 191, 3.9], [7704, 2, 202, 2.87], [20486, 3, 683, 4.12], [1277, 1, 222, 4.47], [11812, 1, 277, 2.13], [8659, 1, 139, 2.84], [10936, 2, 153, 4.24]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 10, 2.95], [326, 2, 7, 1.37], [144, 2, 7, 2.25], [11685, 2, 7, 3.6], [11681, 2, 9, 3.34], [589, 2, 8, 0.61], [205, 2, 7, 0.74], [141, 2, 11, 1.6], [593, 2, 14, 1.01], [305, 2, 7, 1.23], [8915, 2, 8, 0.93], [8650, 2, 7, 2.25], [143, 2, 7, 2.02], [2328, 2, 7, 0.81], [6936, 2, 14, 4.75], [2778, 2, 9, 1.68], [206, 2, 7, 1.57], [146, 2, 9, 1.81], [88, 10, 18, 2.29], [7004, 1, 7, 2.64], [9507, 3, 7, 0.69], [7036, 1, 7, 3.33], [145, 2, 7, 1.75], [1446, 2, 9, 1.73], [417, 2, 7, 0.93], [8853, 2, 7, 2.37], [2055, 3, 7, 4.17], [10993, 2, 7, 0.98], [523, 2, 7, 1.81], [11737, 2, 7, 1.89], [75, 2, 7, 2.14], [2050, 3, 7, 4.18], [12870, 1, 7, 3.81], [3840, 1, 7, 0.77], [3893, 1, 7, 0.83], [12350, 1, 7, 3.92], [2057, 3, 7, 3.77], [13028, 3, 7, 1.25], [2054, 3, 7, 4.18], [7084, 3, 7, 2.03], [3889, 1, 7, 1.75], [2991, 3, 7, 3.39], [20927, 1, 7, 2.14], [3, 2, 7, 1.0], [7005, 1, 7, 1.54], [997, 2, 7, 1.75], [94, 4, 7, 4.1], [10, 2, 7, 0.69], [21793, 1, 7, 3.05], [7885, 4, 9, 1.28], [996, 2, 7, 3.03], [3891, 1, 7, 0.87], [5165, 1, 7, 2.12], [998, 2, 7, 3.03], [6158, 2, 7, 4.2], [8672, 2, 7, 2.68], [9491, 21, 20, 1.19], [11739, 2, 7, 3.41], [5165, 2, 8, 2.12], [2912, 1, 7, 3.97], [972, 3, 8, 3.84], [956, 2, 7, 0.67], [413, 1, 7, 1.67], [98, 11, 16, 2.1], [346, 3, 7, 0.86], [10388, 2, 7, 1.16], [411, 2, 7, 2.21], [346, 1, 7, 0.83], [1492, 1, 7, 0.92], [83, 2, 9, 1.41], [7573, 1, 7, 4.14], [8677, 3, 7, 3.84], [7567, 3, 7, 2.83], [5208, 3, 8, 3.29], [410, 1, 7, 2.57], [22316, 3, 7, 1.23], [9372, 1, 7, 4.15], [995, 2, 7, 3.03], [13928, 1, 7, 2.6], [9081, 3, 12, 3.66], [22247, 2, 7, 2.11], [336, 15, 7, 2.25], [308, 1, 7, 3.42], [161, 3, 8, 4.99], [2912, 2, 8, 3.96], [10631, 2, 7, 2.95], [1622, 1, 7, 2.9], [11953, 1, 7, 1.06], [22317, 3, 7, 1.67], [345, 3, 7, 1.46], [23611, 3, 9, 2.98], [9082, 3, 33, 2.42], [229, 1, 7, 4.1], [6497, 1, 7, 3.08], [192, 3, 20, 1.83], [37, 1, 7, 2.48], [24257, 1, 7, 4.57], [972, 1, 7, 3.34], [11767, 1, 7, 0.83], [12271, 2, 7, 4.85], [10410, 10, 10, 2.97], [82, 2, 7, 1.27], [14037, 3, 7, 4.04], [10407, 10, 10, 3.01], [7704, 2, 7, 2.79], [34, 1, 7, 2.04], [74, 1, 7, 3.1], [3048, 3, 7, 2.19], [1413, 15, 7, 0.69], [20498, 3, 8, 0.7], [38, 1, 7, 1.52], [335, 3, 15, 1.63], [2331, 1, 7, 2.96], [12338, 29, 7, 0.94], [215, 4, 7, 4.81], [12721, 2, 7, 1.73], [152, 21, 7, 2.0], [9, 1, 7, 1.12], [9964, 2, 7, 4.59], [1523, 1, 7, 0.85], [4253, 1, 7, 1.29], [11510, 3, 8, 1.74], [45, 2, 7, 4.04], [8673, 2, 7, 4.12], [12764, 2, 10, 1.18], [10093, 3, 15, 1.68], [5209, 3, 7, 3.29], [7705, 2, 7, 2.79], [1703, 2, 7, 3.77], [2805, 137, 8, 2.05], [7706, 2, 7, 4.27], [3047, 3, 7, 3.13], [12212, 29, 7, 1.19], [1895, 3, 7, 4.81], [9971, 2, 7, 1.35], [346, 1, 166, 1.96], [1492, 1, 40, 2.05], [83, 2, 19, 2.46], [7573, 1, 376, 5.27], [8677, 3, 312, 4.97], [7567, 3, 64, 3.99], [5208, 3, 531, 4.39], [22316, 3, 291, 3.17], [9372, 1, 248, 5.27], [995, 2, 257, 4.15], [13928, 1, 45, 3.73], [9081, 3, 497, 4.78], [22247, 2, 306, 3.24], [336, 15, 112, 3.38], [308, 1, 171, 4.55], [161, 3, 657, 6.0], [2912, 2, 388, 5.09], [10631, 2, 220, 4.08], [1622, 1, 113, 4.02], [11953, 1, 196, 2.19], [22317, 3, 291, 3.63], [345, 3, 274, 3.17], [23611, 3, 351, 4.11], [9082, 3, 2380, 3.58], [229, 1, 88, 5.23], [6497, 1, 39, 4.21], [192, 3, 1377, 2.94], [37, 1, 103, 3.61], [24257, 1, 126, 5.7], [972, 1, 96, 4.47], [11767, 1, 150, 2.12], [12271, 2, 67, 5.97], [82, 2, 61, 2.4], [14037, 3, 353, 5.17], [7704, 2, 172, 3.92], [34, 1, 103, 3.24], [74, 1, 198, 4.23], [3048, 3, 250, 3.31], [1413, 15, 100, 1.82], [20498, 3, 633, 1.83], [38, 1, 108, 2.64], [335, 3, 1398, 2.77], [2331, 1, 122, 4.09], [12338, 29, 49, 2.07], [215, 4, 40, 5.94], [12721, 2, 306, 2.85], [9, 1, 8, 1.93], [9964, 2, 285, 5.72], [1523, 1, 51, 1.98], [4253, 1, 169, 2.42], [11510, 3, 630, 2.87], [45, 2, 114, 5.17], [8673, 2, 302, 5.25], [12764, 2, 719, 2.49], [10093, 3, 889, 2.8], [5209, 3, 531, 4.39], [7705, 2, 172, 3.92], [1703, 2, 159, 4.89], [2805, 137, 184, 3.18], [7706, 2, 172, 5.4], [3047, 3, 289, 4.25], [12212, 29, 117, 2.32], [1895, 3, 318, 5.94], [9971, 2, 285, 2.48]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 28, 3.05], [362, 2, 9, 1.63], [2049, 3, 20, 0.56], [589, 2, 15, 0.55], [3, 2, 7, 2.22], [75, 2, 14, 1.74], [1776, 1, 7, 1.12], [141, 2, 7, 1.62], [8672, 2, 15, 2.16], [130, 1, 7, 0.77], [205, 2, 7, 2.2], [2778, 2, 8, 0.81], [11681, 2, 12, 5.0], [1777, 1, 7, 2.22], [305, 2, 7, 0.94], [6936, 2, 10, 2.79], [8648, 2, 9, 3.46], [593, 2, 11, 2.33], [990, 2, 7, 0.75], [2328, 2, 11, 0.94], [248, 1, 7, 0.71], [88, 10, 26, 1.69], [1007, 2, 12, 1.03], [83, 2, 7, 0.96], [345, 3, 7, 1.35], [5151, 2, 9, 1.71], [8650, 2, 9, 3.5], [412, 1, 9, 3.14], [361, 2, 7, 2.63], [22247, 2, 9, 2.4], [201, 3, 8, 1.25], [57, 1, 11, 0.68], [21793, 1, 7, 3.62], [10149, 3, 25, 3.26], [45, 2, 7, 2.65], [12721, 2, 10, 1.78], [7004, 1, 7, 1.34], [2054, 3, 9, 3.22], [10825, 21, 13, 2.11], [413, 1, 7, 2.79], [167, 3, 7, 2.5], [2057, 3, 7, 3.22], [74, 1, 7, 3.5], [6158, 2, 12, 2.62], [308, 1, 7, 2.44], [168, 3, 7, 1.38], [432, 3, 7, 1.61], [10, 2, 21, 1.91], [13028, 3, 7, 1.61], [7887, 4, 7, 0.77], [7036, 1, 7, 5.0], [3495, 3, 21, 1.64], [214, 3, 15, 0.77], [12870, 1, 11, 5.0], [335, 3, 46, 3.03], [5081, 2, 9, 0.59], [79, 1, 7, 0.73], [5208, 3, 13, 3.4], [9827, 3, 7, 0.86], [410, 1, 7, 1.54], [3889, 1, 7, 2.63], [95, 3, 21, 3.57], [5812, 3, 10, 2.24], [3893, 1, 7, 1.67], [1504, 2, 11, 0.89], [13260, 29, 7, 1.89], [23, 1, 7, 2.91], [94, 4, 7, 4.62], [7005, 1, 7, 1.44], [1490, 1, 7, 2.0], [411, 2, 7, 1.46], [25, 1, 7, 3.39], [998, 2, 7, 2.66], [1124, 2, 10, 1.74], [3980, 4, 7, 2.76], [21269, 3, 7, 5.0], [10574, 3, 9, 2.32], [5086, 1, 9, 2.04], [9691, 1, 7, 4.14], [856, 1, 7, 1.17], [2878, 1, 7, 3.5], [5660, 2, 7, 3.65], [11914, 1, 14, 1.02], [997, 2, 11, 3.39], [20927, 1, 9, 1.75], [9829, 3, 7, 3.0], [1703, 2, 7, 3.63], [8676, 2, 7, 1.94], [5209, 3, 9, 0.68], [9081, 3, 14, 3.64], [1622, 1, 10, 0.85], [192, 3, 22, 5.0], [952, 4, 7, 5.0], [20498, 1, 7, 1.79], [8674, 2, 10, 3.36], [8898, 3, 7, 5.0], [5513, 2, 7, 1.88], [1070, 7, 13, 1.15], [996, 2, 9, 4.36], [1091, 1, 7, 1.35], [12661, 1, 7, 5.0], [14037, 3, 7, 0.89], [13034, 3, 12, 3.24], [6097, 29, 14, 2.33], [1519, 3, 26, 0.67], [22317, 3, 8, 1.15], [24, 1, 7, 2.51], [20498, 3, 10, 3.52], [8274, 3, 9, 1.8], [4203, 1, 9, 1.27], [10529, 29, 9, 2.95], [9760, 29, 7, 0.62], [82, 2, 7, 1.39], [6097, 80, 7, 2.66], [1413, 15, 7, 1.69], [336, 15, 7, 0.67], [9082, 3, 21, 1.67], [11767, 1, 7, 0.9], [2104, 3, 12, 3.03], [23611, 3, 7, 3.74], [995, 2, 11, 4.19], [6098, 80, 7, 2.7], [66, 1, 7, 0.81], [11769, 1, 7, 0.9], [6098, 29, 7, 1.86], [66, 16, 7, 0.9], [13484, 1, 7, 4.31], [8945, 3, 8, 1.72], [2109, 3, 15, 0.83], [10780, 10, 7, 4.39], [20486, 1, 7, 4.81], [9372, 1, 7, 2.18], [5946, 1, 7, 2.62], [2537, 1, 7, 2.29], [972, 3, 8, 2.36], [7005, 1, 71, 2.72], [1490, 1, 52, 2.95], [411, 2, 97, 2.73], [25, 1, 58, 4.15], [998, 2, 233, 5.32], [1124, 2, 193, 2.68], [3980, 4, 500, 3.71], [21269, 3, 261, 6.0], [10574, 3, 450, 3.47], [5086, 1, 163, 4.44], [9691, 1, 66, 5.09], [856, 1, 31, 2.12], [2878, 1, 71, 4.45], [5660, 2, 154, 4.6], [11914, 1, 75, 3.92], [997, 2, 233, 4.34], [20927, 1, 69, 2.66], [9829, 3, 71, 3.95], [1703, 2, 144, 5.03], [8676, 2, 267, 2.88], [5209, 3, 499, 3.11], [9081, 3, 457, 6.0], [1622, 1, 102, 1.8], [192, 3, 1360, 6.0], [952, 4, 64, 6.0], [20498, 1, 102, 2.74], [8674, 2, 267, 4.31], [8898, 3, 247, 6.0], [1070, 7, 522, 3.06], [996, 2, 221, 5.54], [1091, 1, 43, 3.18], [12661, 1, 70, 5.96], [14037, 3, 180, 1.65], [13034, 3, 520, 4.92], [6097, 29, 33, 3.51], [1519, 3, 1450, 2.5], [22317, 3, 280, 2.81], [24, 1, 99, 4.06], [20498, 3, 522, 4.7], [4203, 1, 48, 2.93], [10529, 29, 39, 4.25], [9760, 29, 64, 2.78], [82, 2, 54, 2.34], [6097, 80, 62, 3.61], [1413, 15, 87, 2.97], [9082, 3, 2175, 3.67], [11767, 1, 171, 1.85], [23611, 3, 327, 4.7], [995, 2, 233, 5.84], [6098, 80, 68, 3.65], [66, 1, 36, 1.76], [11769, 1, 171, 1.85], [6098, 29, 36, 2.81], [66, 16, 80, 1.85], [13484, 1, 182, 5.25], [8945, 3, 612, 2.66], [2109, 3, 482, 1.78], [10780, 10, 387, 5.34], [20486, 1, 102, 5.76], [9372, 1, 213, 3.13], [5946, 1, 128, 3.57], [2537, 1, 37, 3.24], [972, 3, 618, 3.31]]</t>
+  </si>
+  <si>
+    <t>[[589, 2, 10, 0.87], [88, 10, 29, 1.1], [8915, 2, 12, 1.06], [6935, 2, 14, 4.34], [2778, 2, 7, 0.55], [305, 2, 7, 1.07], [2328, 2, 11, 1.46], [326, 2, 14, 2.52], [6936, 2, 7, 3.27], [8650, 2, 11, 5.0], [8648, 2, 7, 3.27], [1446, 2, 7, 1.57], [7004, 1, 9, 2.45], [205, 2, 7, 1.67], [2775, 2, 7, 1.79], [144, 2, 9, 2.5], [10, 2, 9, 2.05], [1124, 2, 7, 1.59], [94, 4, 7, 3.76], [7885, 4, 7, 1.19], [3893, 1, 9, 1.86], [7886, 4, 7, 0.92], [141, 2, 9, 2.28], [146, 2, 7, 2.31], [3891, 1, 9, 1.3], [2055, 3, 7, 1.9], [75, 2, 9, 3.67], [21793, 1, 7, 1.66], [206, 2, 7, 1.37], [12349, 1, 7, 4.12], [10993, 2, 7, 0.87], [5208, 3, 11, 2.22], [2054, 3, 7, 4.17], [3889, 1, 26, 2.13], [3980, 4, 8, 2.38], [7005, 1, 7, 1.79], [12870, 1, 7, 3.72], [145, 2, 7, 3.0], [5165, 1, 7, 2.07], [2912, 1, 7, 3.71], [10149, 3, 21, 3.06], [20927, 1, 9, 2.86], [9760, 29, 7, 0.97], [998, 2, 7, 4.0], [2436, 4, 9, 1.11], [7887, 4, 11, 2.05], [417, 2, 9, 2.28], [997, 2, 7, 2.49], [2424, 80, 7, 2.78], [3, 2, 7, 2.2], [6158, 2, 11, 1.56], [632, 11, 21, 1.4], [5076, 1, 9, 2.78], [9491, 21, 26, 3.05], [972, 3, 9, 2.36], [229, 1, 7, 3.17], [214, 3, 15, 1.02], [74, 1, 7, 4.99], [3495, 3, 18, 2.56], [523, 2, 7, 1.19], [11770, 1, 7, 3.83], [7573, 1, 16, 5.0], [11953, 1, 7, 1.6], [5165, 2, 8, 2.08], [24257, 1, 7, 1.44], [12721, 2, 7, 1.73], [2423, 80, 9, 4.42], [1492, 1, 7, 1.14], [12350, 1, 7, 5.0], [11772, 1, 7, 3.6], [192, 3, 15, 2.09], [1622, 1, 7, 3.49], [2912, 2, 12, 4.3], [22317, 3, 7, 0.81], [8677, 3, 7, 2.5], [2438, 2, 8, 3.57], [5434, 1, 7, 2.89], [8898, 3, 7, 5.0], [823, 1, 7, 1.25], [361, 2, 7, 1.77], [2424, 29, 7, 2.71], [9372, 1, 7, 3.93], [4253, 1, 7, 0.75], [3975, 4, 9, 3.74], [3900, 3, 7, 1.68], [33, 1, 7, 1.96], [5209, 3, 53, 3.59], [6496, 1, 7, 3.25], [7567, 3, 7, 2.27], [37, 1, 7, 1.59], [5946, 1, 9, 0.77], [2805, 137, 7, 2.67], [335, 3, 15, 0.89], [11812, 1, 7, 0.9], [12764, 2, 10, 1.23], [10407, 10, 12, 3.01], [220, 4, 7, 3.39], [6097, 80, 7, 2.16], [972, 1, 7, 2.36], [1703, 2, 7, 1.67], [10388, 2, 7, 1.17], [24258, 1, 7, 2.51], [1339, 3, 16, 0.66], [11490, 1, 7, 0.96], [38, 1, 7, 1.96], [35, 1, 7, 1.96], [1414, 15, 7, 0.75], [1274, 1, 7, 1.33], [22247, 2, 7, 2.11], [161, 3, 9, 4.12], [11236, 2, 7, 1.19], [4232, 80, 7, 3.57], [2104, 3, 15, 1.32], [1895, 3, 7, 1.69], [12212, 29, 7, 1.25], [12979, 25, 15, 1.36], [13893, 2, 7, 2.25], [10631, 2, 7, 3.04], [8659, 1, 7, 1.64], [11813, 1, 7, 1.69], [216, 4, 7, 1.17], [1309, 1, 7, 0.87], [8635, 3, 7, 2.45], [10093, 3, 14, 1.76], [12728, 1, 7, 2.37], [4940, 1, 7, 0.98], [8104, 1, 7, 3.87], [8274, 3, 7, 2.04], [76, 2, 7, 0.9], [788, 2, 7, 1.02], [12501, 1, 7, 2.39], [13928, 1, 7, 3.04], [5164, 1, 7, 1.99], [11942, 29, 7, 1.31], [10386, 2, 7, 2.99], [19931, 1, 7, 2.43], [11772, 1, 233, 4.79], [192, 3, 1454, 3.29], [1622, 1, 113, 4.69], [2912, 2, 414, 5.51], [22317, 3, 365, 2.01], [8677, 3, 340, 3.7], [2438, 2, 690, 5.39], [8898, 3, 279, 6.0], [823, 1, 42, 2.45], [361, 2, 162, 2.97], [2424, 29, 39, 3.91], [9372, 1, 264, 5.13], [4253, 1, 199, 1.95], [3975, 4, 476, 4.93], [3900, 3, 10, 2.54], [33, 1, 117, 3.17], [5209, 3, 117, 4.26], [6496, 1, 42, 4.45], [7567, 3, 80, 3.47], [37, 1, 117, 2.79], [5946, 1, 136, 2.36], [2805, 137, 191, 3.87], [335, 3, 1510, 2.09], [11812, 1, 249, 2.1], [12764, 2, 768, 2.59], [220, 4, 50, 4.59], [6097, 80, 69, 3.49], [972, 1, 114, 3.57], [1703, 2, 189, 2.87], [10388, 2, 254, 2.37], [1339, 3, 406, 1.31], [11490, 1, 125, 2.16], [38, 1, 127, 3.17], [35, 1, 117, 3.17], [1414, 15, 114, 1.95], [1274, 1, 95, 2.53], [22247, 2, 328, 3.32], [161, 3, 754, 5.32], [11236, 2, 255, 2.39], [4232, 80, 171, 4.77], [2104, 3, 389, 2.52], [1895, 3, 339, 2.88], [12212, 29, 132, 2.45], [12979, 25, 683, 2.57], [13893, 2, 316, 3.45], [10631, 2, 236, 4.24], [8659, 1, 139, 2.84], [11813, 1, 365, 2.89], [216, 4, 44, 2.37], [1309, 1, 60, 2.07], [10093, 3, 950, 2.97], [12728, 1, 340, 3.57], [4940, 1, 140, 2.18], [8104, 1, 222, 5.07], [76, 2, 128, 2.1], [788, 2, 43, 2.08], [12501, 1, 343, 3.6], [13928, 1, 49, 4.24], [5164, 1, 54, 3.19], [11942, 29, 111, 2.51], [10386, 2, 254, 4.19], [19931, 1, 472, 3.64]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 10, 2.95], [305, 2, 7, 1.23], [2778, 2, 11, 1.07], [6936, 2, 11, 3.69], [205, 2, 9, 0.98], [88, 10, 14, 0.72], [144, 2, 9, 2.84], [11681, 2, 9, 3.84], [8915, 2, 8, 1.51], [589, 2, 8, 0.61], [326, 2, 11, 1.94], [2327, 2, 7, 0.98], [8650, 2, 9, 2.48], [7036, 1, 7, 2.85], [593, 2, 10, 1.04], [11685, 2, 7, 3.73], [3893, 1, 7, 0.73], [141, 2, 9, 1.83], [2775, 2, 7, 2.04], [206, 2, 7, 1.5], [9507, 3, 7, 0.69], [7004, 1, 7, 2.52], [3840, 1, 7, 0.77], [3980, 4, 7, 2.37], [143, 2, 9, 3.03], [3891, 1, 9, 1.24], [2050, 3, 7, 3.3], [146, 2, 9, 2.61], [7885, 4, 7, 1.27], [7886, 4, 9, 1.0], [3889, 1, 7, 0.67], [2055, 3, 9, 3.45], [2328, 2, 7, 0.81], [10, 2, 7, 0.69], [2054, 3, 7, 3.67], [362, 2, 7, 2.81], [12870, 1, 9, 3.96], [8672, 2, 14, 2.43], [10993, 2, 7, 1.81], [12349, 1, 7, 3.92], [3975, 4, 7, 2.76], [7084, 3, 7, 2.36], [21793, 1, 7, 2.58], [5165, 1, 7, 2.14], [2057, 3, 9, 5.0], [1446, 2, 7, 1.73], [75, 2, 7, 0.89], [5208, 3, 8, 3.29], [145, 2, 7, 2.5], [2991, 3, 7, 2.7], [523, 2, 7, 2.23], [94, 4, 7, 4.1], [3982, 3, 21, 2.58], [7005, 1, 7, 1.64], [3495, 3, 21, 3.84], [20927, 1, 7, 2.82], [997, 2, 7, 3.03], [7887, 4, 9, 2.05], [6158, 2, 7, 4.2], [2912, 1, 7, 3.97], [82, 2, 7, 1.52], [61, 3, 7, 2.71], [192, 3, 27, 3.04], [35, 1, 9, 3.13], [956, 2, 7, 0.67], [417, 2, 7, 1.18], [5165, 2, 8, 2.12], [22316, 3, 9, 1.23], [6497, 1, 7, 3.08], [998, 2, 7, 3.03], [11953, 1, 9, 0.9], [7567, 3, 7, 3.73], [286, 3, 7, 1.39], [11769, 1, 7, 2.41], [389, 4, 7, 1.64], [1492, 1, 7, 0.92], [996, 2, 9, 3.58], [346, 3, 7, 2.22], [12344, 1, 7, 3.92], [4176, 4, 11, 3.49], [11767, 1, 7, 1.5], [39, 1, 7, 2.0], [7573, 1, 7, 4.14], [410, 1, 7, 2.4], [6496, 1, 7, 2.09], [37, 1, 7, 1.75], [8677, 3, 7, 3.84], [972, 3, 8, 3.56], [74, 1, 7, 3.1], [12721, 2, 7, 2.35], [411, 2, 7, 1.37], [2104, 3, 12, 3.03], [11490, 1, 7, 1.04], [2436, 4, 7, 3.65], [12212, 29, 7, 1.19], [22317, 3, 9, 1.42], [2912, 2, 8, 3.96], [201, 3, 9, 2.61], [345, 3, 7, 0.96], [336, 15, 7, 1.8], [1413, 15, 7, 1.12], [1274, 1, 7, 1.94], [11085, 2, 8, 3.16], [8121, 3, 7, 1.17], [1277, 1, 7, 2.75], [3979, 3, 8, 2.31], [3, 2, 14, 2.68], [14037, 3, 7, 4.04], [21269, 3, 7, 5.0], [823, 1, 7, 1.08], [38, 1, 7, 1.75], [13023, 3, 7, 2.92], [6494, 1, 7, 0.89], [9, 1, 7, 0.69], [12271, 2, 7, 4.85], [8673, 2, 7, 4.12], [36, 1, 7, 1.27], [9784, 1, 7, 2.16], [22247, 2, 9, 3.44], [8676, 2, 7, 4.0], [10408, 10, 10, 3.03], [3577, 25, 7, 1.5], [2805, 137, 8, 2.05], [5209, 3, 7, 3.29], [1414, 15, 7, 1.0], [20498, 3, 8, 1.25], [10936, 2, 7, 2.38], [95, 3, 22, 1.03], [2878, 1, 7, 2.23], [11812, 1, 7, 0.9], [10388, 2, 7, 1.16], [9491, 21, 16, 3.19], [13928, 1, 7, 2.43], [346, 1, 7, 2.34], [399, 24, 7, 5.0], [6497, 1, 39, 4.21], [998, 2, 257, 4.15], [11953, 1, 186, 3.09], [7567, 3, 68, 4.86], [286, 3, 152, 2.52], [11769, 1, 158, 3.54], [389, 4, 217, 2.77], [1492, 1, 40, 2.05], [996, 2, 220, 5.45], [346, 3, 222, 3.08], [12344, 1, 623, 5.04], [4176, 4, 443, 5.45], [11767, 1, 174, 2.62], [39, 1, 103, 3.99], [7573, 1, 338, 5.27], [410, 1, 25, 3.03], [6496, 1, 39, 3.22], [37, 1, 103, 3.47], [8677, 3, 266, 4.97], [972, 3, 636, 4.68], [74, 1, 198, 4.23], [12721, 2, 278, 3.48], [411, 2, 116, 2.49], [11490, 1, 117, 2.17], [2436, 4, 103, 4.77], [12212, 29, 123, 2.32], [22317, 3, 291, 3.63], [2912, 2, 388, 5.09], [201, 3, 274, 4.56], [345, 3, 320, 2.09], [336, 15, 112, 3.47], [1413, 15, 106, 2.25], [1274, 1, 88, 3.07], [11085, 2, 494, 5.4], [8121, 3, 316, 2.3], [1277, 1, 177, 3.87], [3979, 3, 854, 3.44], [3, 2, 43, 3.81], [14037, 3, 353, 5.17], [21269, 3, 270, 6.0], [823, 1, 39, 2.21], [38, 1, 108, 2.87], [13023, 3, 542, 4.04], [6494, 1, 56, 2.02], [9, 1, 36, 1.99], [12271, 2, 67, 5.97], [8673, 2, 271, 5.25], [36, 1, 120, 2.39], [9784, 1, 76, 3.29], [22247, 2, 263, 5.35], [8676, 2, 265, 5.13], [3577, 25, 86, 2.63], [2805, 137, 184, 3.18], [5209, 3, 531, 4.39], [1414, 15, 95, 2.28], [20498, 3, 568, 2.39], [10936, 2, 144, 3.5], [95, 3, 1211, 2.17], [2878, 1, 19, 2.86], [11812, 1, 233, 2.02], [10388, 2, 214, 2.28], [9491, 21, 2155, 4.3], [13928, 1, 45, 3.56], [346, 1, 37, 3.26], [399, 24, 141, 6.0]]</t>
+  </si>
+  <si>
+    <t>[[141, 2, 11, 0.63], [8650, 2, 7, 2.81], [361, 2, 9, 0.7], [5491, 2, 7, 1.02], [589, 2, 11, 0.95], [11685, 2, 11, 2.56], [417, 2, 9, 0.71], [326, 2, 7, 1.18], [6935, 2, 19, 4.24], [205, 2, 7, 0.69], [1124, 2, 10, 1.59], [8648, 2, 7, 1.9], [12721, 2, 14, 1.48], [248, 1, 7, 1.23], [11838, 2, 9, 1.27], [11837, 2, 7, 1.6], [142, 2, 9, 0.68], [8915, 2, 7, 0.73], [6936, 2, 11, 2.52], [2778, 2, 11, 1.59], [8676, 2, 7, 5.0], [9507, 3, 7, 0.67], [305, 2, 9, 2.44], [21793, 1, 8, 3.39], [22247, 2, 7, 2.28], [11835, 2, 7, 1.41], [593, 2, 8, 1.45], [616, 2, 9, 1.06], [411, 2, 7, 1.31], [990, 2, 7, 0.73], [10574, 3, 11, 2.59], [12353, 1, 7, 5.0], [8673, 2, 7, 2.91], [2775, 2, 7, 0.92], [145, 2, 7, 1.75], [6158, 2, 11, 2.15], [11836, 2, 7, 3.33], [2055, 3, 7, 2.72], [3495, 3, 21, 2.66], [10149, 3, 21, 1.49], [88, 10, 20, 3.3], [12344, 1, 7, 5.0], [146, 2, 7, 1.75], [75, 2, 7, 3.48], [2054, 3, 10, 2.05], [2057, 3, 7, 3.2], [10993, 2, 7, 1.5], [7705, 2, 7, 2.74], [12343, 1, 7, 5.0], [7885, 4, 7, 1.67], [61, 3, 7, 0.69], [2424, 29, 7, 3.73], [144, 2, 7, 1.75], [7704, 2, 7, 2.74], [2859, 15, 7, 1.21], [2423, 29, 7, 2.43], [5165, 1, 7, 1.66], [2423, 80, 7, 2.39], [201, 3, 9, 2.66], [335, 3, 17, 1.67], [308, 1, 9, 3.05], [9126, 1, 7, 3.14], [13028, 3, 7, 1.23], [1519, 3, 20, 0.67], [214, 3, 15, 1.77], [2424, 80, 7, 3.68], [12352, 1, 7, 5.0], [7004, 1, 7, 2.48], [345, 3, 7, 0.94], [13023, 3, 10, 2.77], [13034, 3, 9, 2.71], [6952, 1, 7, 1.89], [2703, 3, 7, 4.84], [11770, 1, 7, 4.83], [6494, 1, 7, 0.9], [3430, 15, 7, 1.66], [410, 1, 7, 1.0], [432, 3, 7, 2.72], [94, 4, 7, 4.04], [13928, 1, 7, 2.28], [1492, 1, 7, 1.6], [20927, 1, 7, 2.01], [1886, 2, 7, 0.85], [3893, 1, 7, 2.46], [2331, 1, 7, 3.16], [12347, 1, 7, 2.69], [3891, 1, 7, 5.0], [3981, 3, 13, 1.14], [11811, 1, 7, 1.93], [13033, 3, 8, 1.19], [11954, 1, 7, 1.27], [9690, 1, 7, 1.46], [114, 3, 7, 0.69], [952, 4, 7, 4.31], [1309, 1, 7, 1.77], [105, 3, 7, 0.67], [1274, 1, 7, 2.27], [5584, 3, 7, 2.72], [5946, 1, 7, 2.67], [7886, 4, 9, 1.55], [5733, 2, 8, 1.75], [5812, 3, 7, 2.91], [11089, 1, 7, 1.96], [3, 2, 7, 2.12], [7708, 2, 7, 1.81], [8898, 3, 7, 4.74], [10410, 10, 12, 2.97], [7703, 2, 7, 1.69], [95, 3, 13, 4.5], [3478, 2, 7, 4.0], [10407, 10, 12, 3.01], [9507, 1, 7, 0.69], [22558, 3, 7, 4.63], [8274, 3, 7, 1.75], [3980, 4, 9, 3.46], [9082, 3, 24, 2.83], [957, 2, 7, 0.69], [5165, 2, 8, 1.48], [20555, 2, 7, 1.14], [10408, 10, 10, 1.37], [192, 3, 17, 4.09], [10398, 2, 7, 2.52], [247, 1, 7, 4.64], [963, 3, 7, 3.23], [823, 1, 7, 4.66], [13264, 29, 7, 0.92], [11603, 2, 9, 2.17], [2805, 137, 10, 4.36], [7005, 1, 7, 2.01], [5811, 3, 8, 4.0], [6630, 3, 7, 3.61], [20969, 3, 7, 1.66], [186, 3, 15, 2.26], [9491, 21, 16, 5.0], [21003, 2, 7, 3.61], [12229, 2, 7, 0.87], [7004, 1, 21, 3.23], [345, 3, 315, 2.25], [13023, 3, 629, 4.08], [13034, 3, 629, 4.02], [6952, 1, 192, 3.2], [2703, 3, 305, 6.0], [11770, 1, 216, 6.0], [6494, 1, 55, 2.21], [3430, 15, 73, 2.97], [410, 1, 112, 2.31], [432, 3, 309, 4.03], [94, 4, 123, 5.36], [13928, 1, 50, 3.59], [1492, 1, 39, 2.91], [20927, 1, 84, 3.33], [1886, 2, 167, 2.16], [3893, 1, 128, 3.78], [2331, 1, 124, 4.47], [12347, 1, 642, 4.0], [3891, 1, 48, 6.0], [3981, 3, 1788, 2.46], [11811, 1, 479, 3.25], [13033, 3, 629, 2.49], [11954, 1, 209, 2.58], [9690, 1, 79, 2.77], [114, 3, 66, 1.44], [952, 4, 76, 5.62], [1309, 1, 55, 3.08], [105, 3, 66, 1.42], [1274, 1, 87, 3.58], [5584, 3, 243, 4.04], [5946, 1, 128, 3.99], [5733, 2, 53, 3.06], [5812, 3, 629, 4.22], [11089, 1, 182, 3.28], [3, 2, 127, 3.44], [7708, 2, 186, 3.13], [8898, 3, 294, 6.0], [7703, 2, 186, 3.01], [95, 3, 1052, 5.82], [3478, 2, 77, 5.31], [22558, 3, 481, 5.94], [3980, 4, 513, 4.77], [9082, 3, 2607, 4.17], [957, 2, 115, 2.0], [5165, 2, 406, 2.79], [20555, 2, 61, 2.45], [10408, 10, 840, 2.68], [192, 3, 1406, 5.39], [10398, 2, 155, 3.83], [247, 1, 92, 5.95], [963, 3, 404, 4.54], [823, 1, 39, 5.97], [13264, 29, 77, 2.23], [2805, 137, 181, 5.67], [7005, 1, 84, 3.33], [5811, 3, 626, 5.32], [6630, 3, 99, 4.92], [20969, 3, 626, 2.98], [186, 3, 699, 3.58], [9491, 21, 2195, 6.0], [21003, 2, 302, 4.93], [12229, 2, 161, 2.19]]</t>
+  </si>
+  <si>
+    <t>[[2778, 2, 26, 1.08], [6935, 2, 17, 2.06], [305, 2, 9, 1.46], [6936, 2, 11, 2.9], [2775, 2, 7, 1.39], [145, 2, 7, 2.5], [12721, 2, 10, 1.74], [2327, 2, 9, 1.82], [361, 2, 7, 0.77], [146, 2, 9, 2.15], [8675, 2, 8, 1.61], [362, 2, 9, 1.33], [141, 2, 7, 0.77], [11681, 2, 13, 2.3], [205, 2, 9, 1.26], [8673, 2, 11, 2.91], [8676, 2, 9, 4.5], [308, 1, 17, 2.16], [1124, 2, 10, 1.74], [144, 2, 9, 2.57], [11835, 2, 7, 2.22], [5493, 2, 7, 0.87], [417, 2, 7, 1.94], [8650, 2, 11, 4.38], [11837, 2, 12, 1.48], [3, 2, 7, 2.41], [6097, 80, 9, 4.97], [589, 2, 7, 1.75], [2423, 29, 7, 2.93], [206, 2, 7, 2.1], [6097, 29, 11, 4.97], [11836, 2, 9, 1.44], [593, 2, 10, 2.98], [990, 2, 7, 1.0], [6098, 80, 7, 4.26], [88, 10, 16, 2.4], [523, 2, 7, 1.71], [13260, 29, 7, 2.7], [2423, 80, 7, 1.71], [8915, 2, 9, 1.5], [10993, 2, 7, 1.0], [6494, 1, 7, 0.9], [326, 2, 7, 1.55], [6158, 2, 11, 2.15], [75, 2, 7, 3.25], [10574, 3, 12, 2.19], [1339, 1, 7, 0.83], [335, 3, 17, 1.67], [1492, 1, 7, 1.6], [1050, 2, 7, 0.73], [411, 2, 7, 1.37], [947, 15, 7, 1.46], [151, 1, 7, 1.25], [2859, 15, 7, 1.7], [7004, 1, 7, 2.66], [1339, 3, 21, 0.88], [6496, 1, 7, 4.02], [13264, 29, 7, 1.0], [345, 3, 7, 3.29], [10149, 3, 21, 1.48], [61, 3, 7, 0.85], [7704, 2, 11, 4.33], [1049, 2, 7, 1.7], [1243, 2, 7, 3.7], [964, 15, 7, 3.08], [432, 3, 7, 2.7], [13259, 29, 13, 2.83], [22558, 3, 7, 3.91], [201, 3, 7, 3.56], [1277, 1, 7, 3.9], [5208, 3, 9, 4.93], [7705, 2, 7, 4.6], [2912, 1, 7, 3.91], [963, 3, 7, 0.78], [159, 3, 9, 1.18], [229, 1, 7, 2.59], [186, 3, 15, 1.62], [2438, 1, 7, 2.39], [21793, 1, 8, 3.04], [11738, 2, 7, 0.89], [2331, 1, 7, 2.5], [10407, 10, 12, 3.01], [3478, 2, 7, 3.04], [7706, 2, 7, 4.6], [12229, 2, 7, 1.37], [13928, 1, 7, 2.7], [1548, 1, 7, 2.35], [2703, 3, 7, 4.84], [11844, 2, 7, 3.97], [8944, 3, 7, 0.71], [11490, 1, 7, 1.66], [7036, 1, 7, 1.46], [94, 4, 7, 4.04], [159, 16, 7, 1.33], [114, 3, 7, 1.05], [11687, 2, 7, 1.52], [956, 2, 7, 1.0], [9126, 1, 7, 3.7], [10408, 10, 10, 3.03], [7708, 2, 9, 3.7], [1886, 2, 7, 0.85], [11159, 1, 14, 2.41], [10406, 10, 12, 1.72], [22125, 2, 7, 0.69], [20927, 1, 7, 3.38], [11586, 1, 11, 4.91], [11689, 2, 7, 1.48], [9065, 2, 7, 1.27], [2438, 2, 8, 2.2], [12870, 1, 7, 1.89], [11690, 2, 7, 1.02], [7005, 1, 7, 2.93], [1274, 1, 7, 3.02], [410, 1, 7, 1.0], [1699, 3, 7, 2.9], [2991, 3, 7, 5.0], [2805, 137, 10, 3.48], [21781, 2, 7, 0.9], [152, 21, 7, 1.21], [13259, 25, 7, 2.16], [4253, 1, 7, 2.24], [3495, 3, 21, 2.66], [5976, 1, 7, 4.22], [159, 1, 7, 1.29], [5584, 3, 7, 2.72], [9690, 1, 7, 1.46], [5769, 3, 10, 0.93], [7007, 1, 7, 1.52], [9239, 29, 8, 3.41], [9209, 29, 7, 2.95], [9491, 21, 16, 2.85], [11811, 1, 7, 1.93], [9239, 25, 7, 3.05], [7886, 4, 9, 1.11], [8600, 1, 7, 1.87], [5769, 1, 7, 0.89], [22558, 3, 481, 5.22], [201, 3, 306, 4.87], [1277, 1, 203, 5.21], [5208, 3, 561, 6.0], [7705, 2, 70, 5.6], [2912, 1, 48, 5.22], [963, 3, 426, 2.1], [159, 3, 754, 2.48], [229, 1, 87, 3.91], [186, 3, 703, 2.92], [2438, 1, 56, 3.7], [21793, 1, 247, 4.35], [11738, 2, 61, 2.2], [2331, 1, 124, 3.81], [3478, 2, 79, 4.35], [7706, 2, 70, 5.62], [12229, 2, 154, 3.4], [13928, 1, 50, 4.01], [1548, 1, 100, 3.66], [2703, 3, 305, 6.0], [11844, 2, 286, 5.28], [8944, 3, 59, 1.46], [11490, 1, 115, 2.97], [7036, 1, 135, 2.77], [94, 4, 123, 5.36], [159, 16, 84, 2.64], [114, 3, 260, 2.37], [11687, 2, 320, 2.83], [956, 2, 115, 2.32], [9126, 1, 72, 5.02], [7708, 2, 179, 5.02], [1886, 2, 167, 2.16], [11159, 1, 503, 3.73], [10406, 10, 1925, 3.02], [22125, 2, 50, 1.94], [20927, 1, 83, 4.69], [11586, 1, 382, 6.0], [11689, 2, 320, 2.79], [9065, 2, 320, 2.58], [2438, 2, 669, 3.51], [12870, 1, 148, 3.2], [11690, 2, 320, 2.33], [7005, 1, 83, 4.24], [1274, 1, 86, 4.33], [410, 1, 112, 2.31], [1699, 3, 220, 4.22], [2991, 3, 166, 6.0], [2805, 137, 173, 4.79], [13259, 25, 73, 3.47], [4253, 1, 178, 3.56], [3495, 3, 1026, 3.97], [5976, 1, 161, 5.53], [159, 1, 42, 2.6], [5584, 3, 243, 4.04], [9690, 1, 79, 2.77], [5769, 3, 1118, 2.39], [7007, 1, 83, 2.84], [9239, 29, 30, 4.72], [9209, 29, 35, 4.26], [9491, 21, 2121, 4.14], [11811, 1, 479, 3.25], [9239, 25, 89, 4.36], [8600, 1, 148, 3.18], [5769, 1, 65, 2.2]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 15, 2.15], [141, 2, 9, 0.92], [2778, 2, 20, 1.44], [362, 2, 9, 1.19], [361, 2, 9, 1.35], [6935, 2, 23, 4.75], [12721, 2, 14, 3.77], [8676, 2, 7, 1.6], [2049, 3, 26, 0.5], [417, 2, 9, 1.35], [3, 2, 9, 3.02], [8675, 2, 9, 1.81], [22247, 2, 7, 1.92], [6936, 2, 9, 1.9], [523, 2, 7, 1.77], [305, 2, 7, 1.12], [11838, 2, 7, 3.33], [8650, 2, 9, 3.44], [2328, 2, 11, 2.32], [2776, 2, 9, 2.33], [8648, 2, 7, 3.25], [2327, 2, 9, 1.48], [616, 2, 7, 0.89], [11739, 2, 7, 1.27], [11837, 2, 7, 3.33], [411, 2, 7, 1.48], [2805, 137, 10, 4.64], [6097, 80, 7, 4.97], [11835, 2, 7, 1.42], [6097, 29, 7, 1.85], [146, 2, 7, 2.73], [10993, 2, 7, 0.73], [326, 2, 7, 1.85], [583, 2, 7, 1.53], [10149, 3, 21, 3.22], [145, 2, 7, 1.75], [11836, 2, 7, 3.33], [144, 2, 7, 2.73], [308, 1, 11, 4.07], [75, 2, 7, 3.0], [10574, 3, 12, 2.63], [6494, 1, 7, 0.9], [2057, 3, 7, 3.2], [2055, 3, 7, 2.72], [2422, 29, 7, 1.84], [2054, 3, 7, 2.69], [6098, 80, 7, 2.01], [6098, 29, 7, 2.01], [1243, 2, 7, 3.7], [8915, 2, 7, 1.75], [1886, 2, 7, 0.85], [21793, 1, 8, 3.04], [12345, 1, 7, 3.11], [12349, 1, 7, 3.13], [1492, 1, 7, 1.6], [2859, 15, 7, 1.4], [247, 1, 7, 3.71], [3478, 2, 7, 2.32], [6158, 2, 11, 2.13], [335, 3, 17, 1.67], [201, 3, 7, 2.27], [5165, 1, 7, 1.66], [7084, 3, 7, 4.18], [5208, 3, 9, 3.17], [13928, 1, 7, 2.28], [336, 15, 7, 0.71], [3934, 5, 12, 2.71], [5812, 3, 9, 3.96], [12526, 2, 7, 1.38], [192, 3, 21, 3.69], [4253, 1, 7, 2.24], [94, 4, 7, 4.04], [1703, 2, 7, 4.16], [5811, 3, 10, 4.04], [9491, 21, 16, 2.29], [186, 3, 15, 1.62], [214, 3, 15, 3.19], [11490, 1, 7, 0.73], [2821, 3, 13, 4.39], [61, 3, 9, 0.85], [11767, 1, 7, 2.1], [5813, 3, 7, 3.84], [1050, 2, 7, 1.7], [1309, 1, 7, 1.77], [8938, 2, 7, 4.47], [24722, 2, 7, 1.62], [2991, 3, 7, 4.73], [2912, 1, 7, 0.73], [10398, 2, 7, 1.37], [13260, 29, 7, 2.71], [3495, 3, 21, 2.66], [11671, 1, 7, 3.91], [2438, 2, 8, 2.2], [11771, 1, 7, 4.08], [8599, 1, 7, 5.0], [229, 1, 7, 2.64], [11811, 1, 7, 1.93], [8944, 3, 7, 0.71], [8943, 3, 7, 1.28], [1049, 2, 7, 1.7], [12764, 2, 8, 0.75], [13928, 2, 7, 2.28], [7004, 1, 7, 2.53], [7036, 1, 7, 1.46], [955, 2, 7, 0.85], [11808, 1, 7, 4.76], [10124, 1, 7, 4.18], [5584, 3, 7, 2.72], [22573, 2, 7, 1.46], [3334, 5, 7, 4.39], [8897, 3, 7, 2.37], [9690, 1, 7, 1.45], [18964, 1, 7, 2.18], [6575, 3, 7, 1.37], [20927, 1, 7, 3.7], [1523, 1, 7, 4.47], [45, 2, 7, 4.64], [8274, 3, 7, 2.04], [2438, 1, 7, 2.39], [4001, 3, 17, 2.16], [1277, 1, 7, 3.9], [11886, 2, 7, 1.62], [9239, 29, 8, 3.41], [21269, 3, 7, 4.68], [13258, 29, 13, 4.0], [105, 3, 7, 0.83], [11678, 1, 7, 3.09], [1701, 2, 7, 3.47], [3477, 2, 7, 2.24], [10181, 26, 8, 0.81], [5165, 2, 8, 1.48], [7567, 3, 7, 0.79], [9209, 29, 7, 4.72], [3984, 3, 8, 1.07], [8635, 3, 7, 2.45], [5812, 3, 626, 5.28], [12526, 2, 288, 2.69], [192, 3, 1390, 5.02], [4253, 1, 178, 3.56], [94, 4, 123, 5.36], [1703, 2, 169, 5.48], [5811, 3, 626, 5.36], [9491, 21, 2235, 3.57], [186, 3, 703, 2.92], [11490, 1, 102, 2.01], [2821, 3, 1360, 5.7], [61, 3, 223, 2.16], [11767, 1, 170, 3.41], [5813, 3, 626, 5.16], [1050, 2, 30, 2.45], [1309, 1, 55, 3.08], [8938, 2, 74, 5.48], [24722, 2, 23, 2.62], [2991, 3, 162, 6.0], [2912, 1, 13, 1.48], [10398, 2, 156, 2.68], [13260, 29, 73, 4.02], [3495, 3, 1026, 3.97], [11671, 1, 304, 5.22], [2438, 2, 669, 3.51], [11771, 1, 214, 5.39], [8599, 1, 148, 6.0], [229, 1, 86, 3.95], [11811, 1, 479, 3.25], [8944, 3, 59, 1.46], [8943, 3, 401, 2.59], [1049, 2, 30, 2.45], [12764, 2, 787, 2.06], [13928, 2, 25, 3.59], [7004, 1, 83, 3.84], [7036, 1, 135, 2.77], [955, 2, 115, 2.17], [11808, 1, 497, 6.0], [10124, 1, 107, 5.49], [5584, 3, 243, 4.04], [22573, 2, 80, 2.77], [3334, 5, 180, 5.7], [8897, 3, 283, 3.68], [9690, 1, 79, 2.76], [18964, 1, 72, 3.49], [6575, 3, 262, 2.68], [20927, 1, 21, 4.45], [1523, 1, 49, 5.78], [45, 2, 112, 5.96], [2438, 1, 56, 3.7], [4001, 3, 857, 3.48], [1277, 1, 203, 5.21], [11886, 2, 204, 2.93], [9239, 29, 30, 4.72], [21269, 3, 303, 6.0], [13258, 29, 41, 5.31], [105, 3, 197, 2.08], [11678, 1, 474, 4.41], [1701, 2, 168, 4.79], [3477, 2, 55, 3.56], [10181, 26, 148, 2.12], [5165, 2, 406, 2.79], [7567, 3, 74, 2.1], [9209, 29, 34, 6.0], [3984, 3, 1763, 2.37]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 17, 2.06], [305, 2, 7, 0.88], [8650, 2, 9, 2.32], [2778, 2, 20, 1.61], [8672, 2, 9, 4.04], [143, 2, 7, 2.76], [362, 2, 9, 1.05], [6936, 2, 11, 2.87], [145, 2, 9, 1.91], [11837, 2, 7, 3.47], [361, 2, 9, 1.61], [417, 2, 9, 1.61], [205, 2, 7, 1.08], [75, 2, 9, 1.92], [11681, 2, 13, 2.3], [1124, 2, 10, 1.59], [589, 2, 11, 0.66], [146, 2, 7, 1.1], [11737, 2, 9, 1.5], [8648, 2, 7, 2.12], [12721, 2, 13, 3.55], [523, 2, 9, 1.21], [8673, 2, 11, 2.91], [1504, 2, 13, 1.48], [8853, 2, 9, 3.45], [308, 1, 17, 4.6], [206, 2, 7, 2.28], [326, 2, 9, 1.93], [11835, 2, 7, 0.94], [990, 2, 7, 0.92], [8675, 2, 9, 3.6], [88, 10, 26, 1.79], [8915, 2, 7, 2.51], [144, 2, 7, 1.91], [1005, 2, 7, 2.48], [434, 2, 9, 1.04], [11739, 2, 7, 0.98], [142, 2, 9, 1.61], [8676, 2, 7, 5.0], [2424, 29, 7, 2.34], [9507, 3, 7, 0.67], [6158, 2, 15, 1.54], [7704, 2, 11, 3.78], [2423, 29, 7, 2.77], [11836, 2, 7, 1.62], [2424, 80, 7, 2.57], [7705, 2, 9, 4.26], [11738, 2, 7, 0.85], [1413, 15, 7, 1.49], [7706, 2, 7, 2.37], [2423, 80, 7, 2.23], [3478, 2, 7, 3.89], [7004, 1, 7, 3.0], [944, 15, 9, 0.77], [2859, 15, 7, 2.7], [2054, 3, 7, 3.81], [74, 1, 7, 2.58], [3429, 15, 9, 0.71], [10149, 3, 21, 1.79], [10993, 2, 7, 1.25], [2055, 3, 7, 3.87], [18964, 1, 7, 2.66], [12343, 1, 7, 5.0], [94, 4, 7, 4.25], [13928, 1, 7, 2.7], [13028, 3, 7, 1.23], [13034, 3, 11, 2.28], [2057, 3, 7, 4.35], [7084, 3, 7, 2.51], [11919, 1, 7, 1.14], [411, 2, 7, 2.43], [6097, 80, 7, 1.39], [11089, 1, 9, 2.25], [7886, 4, 9, 0.87], [3893, 1, 7, 4.23], [1050, 2, 7, 1.7], [7036, 1, 7, 1.74], [7707, 2, 7, 2.41], [563, 2, 7, 1.19], [3891, 1, 7, 3.1], [6494, 1, 7, 0.9], [6630, 3, 7, 3.8], [192, 3, 26, 4.63], [21793, 1, 8, 3.39], [1243, 2, 7, 2.33], [8274, 3, 7, 1.6], [7708, 2, 9, 3.71], [2912, 1, 7, 1.73], [13023, 3, 8, 0.8], [11581, 29, 7, 2.14], [3889, 1, 7, 4.23], [9126, 1, 7, 3.31], [159, 3, 9, 1.18], [13033, 3, 7, 1.68], [11490, 1, 7, 1.41], [5208, 3, 11, 3.72], [1049, 2, 7, 0.69], [12229, 2, 7, 1.12], [5940, 3, 7, 1.88], [3495, 3, 21, 2.66], [12349, 1, 7, 4.12], [22558, 3, 7, 4.63], [5165, 1, 7, 1.67], [2331, 1, 7, 3.54], [201, 3, 7, 1.66], [83, 2, 7, 1.93], [332, 2, 7, 0.94], [229, 1, 7, 2.59], [214, 3, 14, 3.19], [951, 4, 7, 3.48], [1309, 1, 7, 1.77], [6496, 1, 7, 4.02], [247, 1, 7, 4.64], [2805, 137, 10, 4.95], [5812, 3, 7, 2.49], [7885, 4, 7, 1.08], [21269, 3, 7, 5.0], [215, 4, 7, 4.38], [9690, 1, 7, 2.38], [942, 3, 7, 2.26], [8898, 3, 7, 3.25], [335, 3, 21, 2.55], [20555, 2, 7, 0.85], [11914, 1, 7, 1.66], [10406, 10, 12, 3.14], [1703, 2, 7, 4.23], [9827, 3, 7, 0.75], [4940, 1, 9, 0.81], [23961, 3, 7, 5.0], [8635, 3, 7, 1.1], [5811, 3, 8, 2.39], [24257, 1, 7, 4.0], [11770, 1, 7, 4.83], [9491, 21, 15, 2.71], [186, 3, 15, 2.26], [3934, 5, 12, 2.71], [2057, 3, 185, 5.34], [7084, 3, 137, 3.82], [411, 2, 109, 3.78], [6097, 80, 73, 2.7], [11089, 1, 182, 3.56], [7886, 4, 38, 2.3], [3893, 1, 126, 5.54], [1050, 2, 30, 2.45], [7036, 1, 136, 3.05], [7707, 2, 179, 3.97], [563, 2, 74, 2.62], [3891, 1, 126, 4.41], [6494, 1, 55, 2.21], [6630, 3, 99, 5.11], [192, 3, 1406, 5.93], [21793, 1, 254, 4.71], [1243, 2, 100, 4.36], [7708, 2, 187, 5.02], [2912, 1, 19, 2.73], [13023, 3, 629, 2.11], [11581, 29, 64, 3.45], [3889, 1, 126, 5.54], [9126, 1, 73, 4.63], [159, 3, 754, 2.48], [13033, 3, 626, 3.0], [11490, 1, 115, 2.72], [5208, 3, 521, 5.04], [1049, 2, 119, 2.0], [12229, 2, 154, 3.4], [5940, 3, 261, 3.19], [3495, 3, 1026, 3.97], [12349, 1, 638, 5.43], [22558, 3, 481, 5.94], [5165, 1, 51, 2.98], [2331, 1, 123, 4.86], [201, 3, 301, 2.97], [332, 2, 78, 2.25], [229, 1, 87, 3.91], [951, 4, 99, 4.79], [1309, 1, 55, 3.08], [6496, 1, 42, 5.33], [247, 1, 92, 5.95], [2805, 137, 179, 6.0], [5812, 3, 595, 5.03], [7885, 4, 37, 2.14], [21269, 3, 299, 6.0], [215, 4, 39, 5.69], [9690, 1, 79, 3.69], [942, 3, 314, 3.57], [8898, 3, 284, 4.56], [335, 3, 344, 3.3], [20555, 2, 61, 2.16], [11914, 1, 90, 2.97], [1703, 2, 166, 5.54], [9827, 3, 89, 2.18], [4940, 1, 129, 2.12], [23961, 3, 299, 6.0], [5811, 3, 623, 3.7], [24257, 1, 143, 5.31], [11770, 1, 216, 6.0], [9491, 21, 2235, 4.0], [186, 3, 699, 3.58], [3934, 5, 554, 4.02]]</t>
+  </si>
+  <si>
+    <t>[[589, 2, 9, 1.0], [141, 2, 7, 1.09], [2327, 2, 9, 1.37], [2778, 2, 14, 1.08], [6936, 2, 13, 3.9], [362, 2, 7, 1.94], [326, 2, 7, 1.25], [305, 2, 7, 2.43], [205, 2, 7, 0.9], [2775, 2, 7, 1.08], [1446, 2, 7, 3.45], [8649, 2, 7, 2.82], [8853, 2, 13, 2.03], [593, 2, 9, 1.55], [206, 2, 7, 2.57], [3840, 1, 7, 0.77], [11581, 29, 7, 1.56], [1429, 2, 7, 3.54], [523, 2, 7, 1.49], [21793, 1, 7, 3.22], [413, 1, 7, 1.81], [412, 1, 7, 2.98], [5165, 1, 7, 2.56], [1124, 2, 7, 2.69], [159, 3, 8, 0.78], [7036, 1, 7, 3.2], [615, 2, 7, 0.81], [201, 3, 14, 3.52], [8089, 1, 7, 1.87], [248, 1, 7, 0.92], [145, 2, 7, 2.73], [6952, 1, 14, 4.0], [345, 3, 9, 1.93], [6097, 80, 9, 4.75], [146, 2, 7, 1.5], [10993, 2, 9, 1.41], [2050, 3, 7, 2.02], [24664, 2, 35, 1.7], [144, 2, 7, 1.72], [2055, 3, 7, 1.23], [7005, 1, 7, 1.58], [2912, 1, 7, 2.36], [11770, 1, 7, 3.16], [3891, 1, 7, 1.26], [2057, 3, 7, 0.89], [432, 3, 7, 3.18], [997, 2, 7, 1.91], [998, 2, 7, 1.56], [6158, 2, 7, 0.69], [3893, 1, 7, 1.42], [6097, 29, 9, 5.0], [5165, 2, 12, 1.71], [12870, 1, 7, 2.29], [2424, 80, 7, 3.39], [10149, 3, 24, 1.73], [11772, 1, 7, 4.11], [6098, 80, 11, 4.2], [20927, 1, 7, 2.14], [9372, 1, 7, 1.89], [7885, 4, 9, 1.83], [11089, 1, 7, 2.01], [10574, 3, 8, 1.72], [5208, 3, 9, 2.83], [1492, 1, 7, 1.33], [3334, 5, 7, 2.91], [4032, 29, 7, 1.83], [346, 3, 9, 2.76], [11671, 1, 7, 3.96], [22316, 3, 7, 0.96], [13028, 3, 9, 4.04], [1519, 3, 24, 0.67], [3576, 25, 7, 3.64], [1490, 1, 7, 1.39], [12304, 1, 7, 3.69], [3889, 1, 7, 2.23], [2912, 2, 8, 2.37], [11583, 29, 9, 0.79], [13034, 3, 7, 4.36], [972, 3, 7, 2.36], [214, 3, 15, 1.16], [5151, 2, 7, 0.87], [229, 1, 7, 4.72], [11426, 25, 7, 2.5], [161, 3, 10, 3.56], [346, 1, 7, 2.76], [2331, 1, 7, 3.54], [5812, 3, 10, 4.66], [11490, 1, 7, 1.1], [8677, 3, 8, 2.09], [9289, 29, 7, 2.51], [1701, 2, 7, 3.01], [13893, 2, 7, 3.45], [75, 2, 7, 1.03], [10, 2, 9, 0.69], [1309, 1, 7, 0.79], [2805, 137, 7, 3.35], [3575, 25, 7, 2.14], [2160, 68, 7, 1.96], [11404, 2, 7, 0.87], [12764, 2, 9, 1.71], [13023, 3, 10, 3.3], [159, 1, 7, 0.87], [4253, 1, 7, 2.18], [5209, 3, 7, 2.83], [9069, 1, 7, 1.69], [957, 2, 7, 2.0], [6494, 1, 7, 0.89], [2438, 2, 8, 2.42], [9971, 2, 7, 1.33], [11813, 1, 7, 3.62], [14037, 3, 7, 2.34], [192, 3, 13, 3.54], [9967, 2, 7, 1.33], [4033, 29, 7, 3.15], [9491, 21, 13, 2.86], [159, 16, 7, 0.9], [24257, 1, 7, 2.83], [8943, 3, 7, 1.0], [2878, 1, 7, 2.75], [11150, 2, 8, 0.79], [5584, 3, 7, 4.0], [9964, 2, 7, 2.21], [105, 3, 7, 2.08], [22317, 3, 8, 1.1], [8283, 2, 8, 3.44], [10609, 1, 7, 1.79], [9965, 2, 7, 1.33], [10407, 10, 12, 3.01], [4076, 3, 7, 3.37], [4586, 10, 21, 1.75], [3495, 3, 15, 2.82], [335, 3, 20, 1.54], [14041, 3, 7, 0.94], [24258, 1, 7, 4.24], [7324, 1, 7, 1.59], [9910, 25, 7, 0.71], [7567, 3, 7, 2.04], [3576, 25, 36, 4.55], [1490, 1, 60, 2.62], [12304, 1, 128, 4.92], [3889, 1, 132, 3.46], [2912, 2, 447, 3.6], [11583, 29, 60, 2.07], [13034, 3, 599, 5.6], [972, 3, 599, 3.6], [214, 3, 764, 2.4], [5151, 2, 25, 2.22], [229, 1, 86, 5.95], [11426, 25, 120, 3.73], [161, 3, 843, 4.8], [2331, 1, 137, 4.78], [5812, 3, 593, 5.99], [11490, 1, 90, 2.27], [8677, 3, 346, 3.32], [9289, 29, 75, 3.74], [1701, 2, 176, 4.24], [13893, 2, 320, 4.68], [75, 2, 147, 2.27], [1309, 1, 61, 2.02], [2805, 137, 212, 4.58], [3575, 25, 119, 3.37], [2160, 68, 156, 3.19], [11404, 2, 124, 2.1], [12764, 2, 784, 2.94], [13023, 3, 599, 4.52], [159, 1, 47, 2.1], [4253, 1, 197, 3.42], [5209, 3, 328, 3.92], [9069, 1, 124, 2.92], [957, 2, 23, 3.18], [6494, 1, 61, 2.12], [2438, 2, 743, 3.66], [9971, 2, 320, 2.57], [11813, 1, 346, 4.86], [14037, 3, 399, 3.57], [192, 3, 1598, 4.78], [9967, 2, 320, 2.57], [4033, 29, 117, 4.38], [9491, 21, 2310, 4.07], [159, 16, 94, 2.13], [24257, 1, 144, 4.06], [11150, 2, 415, 2.02], [5584, 3, 278, 5.23], [9964, 2, 320, 3.44], [105, 3, 258, 3.31], [22317, 3, 342, 2.34], [8283, 2, 552, 4.68], [10609, 1, 337, 3.02], [9965, 2, 320, 2.57], [4076, 3, 235, 4.6], [4586, 10, 1559, 3.0], [3495, 3, 1140, 4.07], [335, 3, 1528, 2.77], [14041, 3, 818, 2.16], [24258, 1, 160, 5.47], [7324, 1, 71, 2.82], [9910, 25, 26, 1.62], [7567, 3, 82, 3.27]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 15, 2.66], [305, 2, 7, 1.49], [6935, 2, 28, 4.58], [141, 2, 9, 2.12], [2049, 3, 16, 0.5], [12721, 2, 10, 1.78], [205, 2, 7, 0.71], [130, 1, 9, 1.26], [589, 2, 18, 0.5], [151, 1, 7, 1.08], [1776, 1, 7, 1.94], [362, 2, 11, 2.59], [146, 2, 9, 1.44], [145, 2, 7, 0.91], [593, 2, 11, 2.08], [8915, 2, 12, 0.73], [2328, 2, 9, 1.01], [1777, 1, 7, 2.22], [6936, 2, 12, 2.57], [3, 2, 7, 2.22], [22247, 2, 9, 2.35], [8675, 2, 10, 2.17], [248, 1, 7, 0.71], [1007, 2, 12, 0.66], [2778, 2, 7, 1.63], [88, 10, 20, 1.98], [10, 2, 17, 1.8], [8677, 3, 8, 3.19], [412, 1, 7, 2.33], [10149, 3, 25, 3.26], [2054, 3, 11, 1.86], [11681, 2, 11, 2.92], [10825, 21, 13, 1.81], [13028, 3, 7, 1.29], [361, 2, 7, 1.5], [413, 1, 7, 2.79], [7004, 1, 7, 1.24], [2055, 3, 7, 1.92], [2057, 3, 7, 3.71], [8676, 2, 7, 1.94], [411, 2, 7, 1.42], [410, 1, 7, 1.42], [308, 1, 7, 2.44], [61, 3, 7, 2.15], [6158, 2, 12, 2.62], [432, 3, 7, 2.04], [1124, 2, 12, 0.75], [45, 2, 7, 3.67], [7005, 1, 7, 1.24], [5081, 2, 12, 1.3], [94, 4, 7, 3.7], [167, 3, 11, 2.7], [9827, 3, 7, 1.13], [5812, 3, 10, 3.41], [3495, 3, 26, 2.72], [168, 3, 9, 2.11], [3893, 1, 7, 1.02], [12870, 1, 11, 5.0], [3889, 1, 7, 1.02], [10574, 3, 10, 3.85], [3891, 1, 7, 1.02], [8651, 2, 7, 2.79], [335, 3, 22, 3.03], [6097, 80, 7, 4.69], [95, 3, 19, 0.93], [20256, 2, 7, 1.11], [6098, 29, 11, 4.26], [11737, 2, 7, 1.87], [1490, 1, 7, 1.79], [214, 3, 15, 0.98], [346, 1, 9, 1.36], [998, 2, 9, 3.76], [20927, 1, 7, 2.0], [9069, 1, 11, 2.03], [20498, 1, 7, 2.94], [1622, 1, 9, 1.74], [8898, 3, 7, 4.48], [6098, 80, 9, 4.26], [9760, 29, 7, 1.26], [1070, 7, 13, 2.71], [14017, 3, 7, 1.29], [9829, 3, 7, 3.0], [997, 2, 9, 2.59], [13260, 29, 7, 2.65], [22554, 10, 18, 0.87], [13034, 3, 13, 2.73], [1243, 2, 7, 1.52], [20498, 3, 12, 3.24], [346, 3, 8, 0.92], [345, 3, 7, 1.12], [336, 15, 7, 0.67], [5513, 2, 7, 1.1], [22317, 3, 14, 1.85], [996, 2, 7, 4.42], [5946, 1, 7, 1.02], [5811, 3, 7, 3.88], [5813, 3, 7, 2.03], [9691, 1, 7, 3.2], [5086, 1, 11, 3.69], [8945, 3, 8, 1.48], [995, 2, 9, 4.24], [952, 4, 7, 5.0], [11085, 2, 7, 0.86], [1080, 3, 7, 1.46], [1413, 15, 7, 0.75], [8557, 3, 9, 2.11], [3049, 3, 7, 4.36], [20486, 3, 12, 4.12], [9082, 3, 24, 2.75], [2424, 80, 7, 4.26], [4076, 3, 7, 5.0], [1703, 2, 7, 2.97], [215, 4, 7, 5.0], [9081, 3, 15, 3.06], [823, 1, 7, 0.92], [20486, 1, 7, 2.87], [8274, 3, 7, 1.27], [8943, 3, 7, 1.22], [13023, 3, 8, 2.86], [2854, 21, 19, 1.1], [11510, 3, 12, 2.73], [23611, 3, 7, 3.74], [470, 1, 7, 0.71], [14018, 3, 7, 0.81], [6497, 1, 7, 2.18], [8104, 1, 7, 4.2], [3047, 3, 7, 2.18], [18, 1, 7, 0.73], [2878, 1, 9, 3.76], [1414, 15, 7, 0.56], [20969, 3, 7, 2.16], [12923, 1, 7, 0.96], [10529, 29, 8, 2.79], [18964, 1, 7, 1.73], [13484, 1, 7, 4.31], [10780, 10, 7, 4.39], [214, 3, 574, 2.12], [346, 1, 152, 2.98], [998, 2, 233, 4.71], [20927, 1, 26, 2.57], [9069, 1, 42, 2.6], [20498, 1, 87, 4.35], [1622, 1, 102, 2.69], [8898, 3, 247, 6.0], [9760, 29, 68, 2.21], [1070, 7, 522, 3.67], [14017, 3, 176, 3.64], [9829, 3, 71, 3.95], [997, 2, 233, 4.44], [13260, 29, 64, 3.6], [22554, 10, 336, 2.02], [13034, 3, 520, 4.92], [1243, 2, 92, 2.47], [20498, 3, 522, 4.44], [346, 3, 641, 1.86], [345, 3, 315, 2.07], [5513, 2, 83, 2.05], [22317, 3, 280, 3.27], [996, 2, 233, 6.0], [5946, 1, 109, 2.17], [5811, 3, 615, 4.82], [5813, 3, 596, 4.04], [9691, 1, 66, 5.06], [5086, 1, 163, 4.63], [8945, 3, 612, 2.42], [995, 2, 233, 6.0], [952, 4, 64, 5.95], [11085, 2, 516, 1.8], [1080, 3, 125, 2.41], [1413, 15, 87, 2.02], [8557, 3, 176, 3.93], [3049, 3, 135, 6.0], [20486, 3, 522, 5.68], [9082, 3, 2550, 3.67], [2424, 80, 158, 5.21], [4076, 3, 177, 6.0], [1703, 2, 144, 4.62], [215, 4, 36, 6.0], [9081, 3, 457, 5.21], [823, 1, 42, 1.87], [20486, 1, 87, 5.27], [13023, 3, 522, 4.84], [2854, 21, 985, 2.75], [11510, 3, 578, 3.88], [23611, 3, 306, 4.7], [14018, 3, 206, 1.75], [6497, 1, 34, 3.84], [8104, 1, 186, 5.14], [3047, 3, 239, 3.13], [18, 1, 51, 1.68], [2878, 1, 41, 4.65], [1414, 15, 87, 2.72], [20969, 3, 522, 3.32], [12923, 1, 36, 1.91], [10529, 29, 38, 3.74], [18964, 1, 70, 2.68], [13484, 1, 182, 5.25], [10780, 10, 387, 5.34]]</t>
   </si>
 </sst>
 </file>

--- a/QD_upload.xlsx
+++ b/QD_upload.xlsx
@@ -70,82 +70,82 @@
     <t>SakkarahQD</t>
   </si>
   <si>
-    <t>20/12/2025 12:37</t>
-  </si>
-  <si>
-    <t>26/12/2025 23:59</t>
-  </si>
-  <si>
-    <t>[[305, 2, 4, 0.35], [8672, 2, 6, 0.73], [3, 2, 4, 0.97], [589, 2, 8, 0.2], [6935, 2, 10, 1.02], [2049, 3, 11, 0.89], [130, 1, 5, 0.85], [205, 2, 4, 0.2], [12721, 2, 6, 0.97], [144, 2, 4, 0.74], [75, 2, 6, 0.87], [145, 2, 4, 0.27], [1776, 1, 4, 0.61], [8915, 2, 8, 0.2], [593, 2, 6, 0.59], [151, 1, 4, 0.2], [2778, 2, 6, 0.2], [1777, 1, 4, 0.74], [8648, 2, 4, 1.27], [6936, 2, 6, 1.17], [2328, 2, 4, 0.2], [5151, 2, 4, 0.22], [147, 1, 4, 0.45], [88, 10, 10, 0.44], [141, 2, 4, 1.31], [83, 2, 4, 0.44], [74, 1, 4, 1.53], [2054, 3, 6, 0.53], [10825, 21, 11, 1.03], [362, 2, 4, 0.96], [1007, 2, 5, 0.37], [2057, 3, 6, 0.47], [345, 3, 5, 0.32], [2055, 3, 5, 0.42], [432, 3, 6, 0.62], [7005, 1, 4, 0.2], [21793, 1, 5, 1.14], [22247, 2, 5, 0.95], [57, 1, 4, 0.44], [410, 1, 4, 1.5], [3889, 1, 4, 0.2], [201, 3, 5, 0.2], [308, 1, 5, 0.49], [11234, 2, 5, 1.4], [12870, 1, 4, 2.08], [10149, 3, 15, 0.99], [7036, 1, 4, 0.68], [1124, 2, 8, 0.2], [35, 1, 4, 0.83], [9827, 3, 4, 0.83], [167, 3, 5, 1.4], [5081, 2, 6, 0.2], [94, 4, 4, 1.57], [8677, 3, 7, 0.65], [1654, 2, 4, 0.48], [411, 2, 4, 0.46], [1504, 2, 5, 0.27], [3891, 1, 4, 0.2], [79, 1, 4, 0.49], [8676, 2, 4, 0.73], [3893, 1, 4, 0.2], [168, 3, 5, 1.23], [2336, 3, 5, 0.99], [5812, 3, 6, 0.8], [9760, 29, 4, 0.2], [23, 1, 4, 1.51], [1490, 1, 4, 0.48], [412, 1, 4, 1.39], [6158, 2, 5, 0.51], [20927, 1, 4, 1.42], [45, 2, 4, 0.64], [1767, 25, 5, 0.59], [361, 2, 4, 1.31], [5208, 3, 5, 0.47], [8651, 2, 4, 1.68], [335, 3, 13, 0.22], [95, 3, 16, 0.3], [9069, 1, 4, 0.42], [25, 1, 4, 1.51], [346, 1, 4, 0.85], [1622, 1, 4, 0.88], [214, 3, 10, 0.2], [8674, 2, 4, 0.73], [2049, 1, 4, 0.23], [21269, 3, 4, 1.23], [413, 1, 5, 1.57], [998, 2, 4, 1.22], [34, 1, 4, 1.85], [3495, 3, 13, 1.31], [856, 1, 4, 0.2], [8898, 3, 6, 0.75], [1070, 7, 10, 0.47], [11116, 1, 5, 0.56], [1766, 25, 4, 0.56], [9691, 1, 4, 2.02], [20498, 1, 4, 0.23], [346, 3, 4, 0.82], [5946, 1, 4, 0.78], [38, 1, 4, 1.85], [9829, 3, 4, 1.17], [14017, 3, 5, 0.79], [974, 3, 5, 1.13], [1091, 1, 4, 0.53], [152, 21, 4, 0.78], [20498, 3, 8, 0.57], [39, 1, 4, 1.85], [82, 2, 4, 1.31], [9372, 1, 5, 2.24], [1080, 3, 5, 0.2], [14037, 3, 5, 0.2], [5086, 1, 4, 2.44], [996, 2, 5, 1.22], [1767, 2, 4, 0.59], [5209, 3, 4, 0.75], [192, 3, 10, 2.16], [5811, 3, 5, 2.2], [3048, 3, 4, 1.24], [9828, 3, 4, 1.52], [972, 3, 5, 0.91], [24, 1, 4, 0.79], [13260, 29, 4, 0.73], [10780, 10, 4, 1.3], [5513, 2, 4, 0.75], [5813, 3, 5, 1.51], [4203, 1, 4, 0.3], [952, 4, 5, 2.16], [202, 2, 4, 1.59], [3981, 3, 12, 1.42], [8945, 3, 5, 1.5], [13034, 3, 5, 1.09], [36, 1, 4, 1.85], [2878, 1, 4, 0.54], [336, 15, 4, 0.35], [3900, 3, 4, 0.49], [955, 2, 4, 0.36], [9082, 3, 18, 0.83], [305, 2, 175, 2.38], [8672, 2, 306, 3.75], [3, 2, 150, 3.44], [589, 2, 173, 1.91], [6935, 2, 342, 3.96], [130, 1, 20, 2.97], [205, 2, 110, 3.06], [12721, 2, 289, 4.25], [144, 2, 162, 2.49], [75, 2, 149, 4.16], [145, 2, 181, 2.07], [1776, 1, 110, 3.69], [8915, 2, 131, 1.75], [593, 2, 243, 3.15], [151, 1, 68, 1.95], [2778, 2, 175, 3.62], [1777, 1, 110, 3.91], [8648, 2, 251, 6.0], [6936, 2, 324, 5.03], [2328, 2, 153, 3.85], [5151, 2, 27, 2.22], [147, 1, 105, 3.44], [88, 10, 603, 3.06], [141, 2, 156, 4.17], [83, 2, 60, 2.02], [74, 1, 200, 6.0], [2054, 3, 479, 3.09], [10825, 21, 639, 4.0], [362, 2, 151, 3.42], [1007, 2, 321, 1.79], [2057, 3, 479, 3.44], [345, 3, 304, 3.6], [2055, 3, 479, 3.34], [432, 3, 306, 3.7], [7005, 1, 81, 1.97], [21793, 1, 268, 5.26], [22247, 2, 305, 3.78], [57, 1, 91, 2.16], [410, 1, 88, 3.88], [3889, 1, 125, 3.36], [201, 3, 304, 3.6], [308, 1, 170, 3.8], [11234, 2, 218, 3.53], [10149, 3, 888, 4.21], [7036, 1, 144, 4.3], [1124, 2, 189, 3.6], [35, 1, 113, 4.47], [9827, 3, 89, 3.28], [167, 3, 230, 4.22], [5081, 2, 214, 3.69], [94, 4, 120, 4.66], [8677, 3, 297, 3.82], [1654, 2, 110, 1.99], [411, 2, 129, 2.19], [1504, 2, 245, 3.29], [3891, 1, 125, 4.24], [79, 1, 56, 2.01], [8676, 2, 306, 2.77], [3893, 1, 125, 4.2], [168, 3, 447, 4.78], [2336, 3, 690, 3.03], [5812, 3, 675, 3.94], [9760, 29, 80, 2.42], [23, 1, 132, 3.98]]</t>
-  </si>
-  <si>
-    <t>[[305, 2, 4, 0.45], [589, 2, 5, 0.66], [6935, 2, 6, 1.69], [2778, 2, 5, 0.2], [144, 2, 4, 0.29], [8915, 2, 5, 0.2], [2328, 2, 4, 0.2], [6936, 2, 5, 1.66], [8648, 2, 5, 1.15], [205, 2, 4, 0.2], [8650, 2, 4, 1.52], [593, 2, 6, 0.2], [145, 2, 4, 0.25], [146, 2, 5, 0.91], [326, 2, 4, 0.39], [7036, 1, 4, 1.53], [88, 10, 17, 0.52], [2776, 2, 4, 0.81], [141, 2, 5, 0.39], [7004, 1, 4, 1.09], [1446, 2, 4, 0.28], [1124, 2, 4, 0.57], [206, 2, 4, 0.2], [142, 2, 4, 0.92], [2912, 1, 4, 1.89], [11685, 2, 4, 0.71], [10993, 2, 5, 0.2], [7886, 4, 5, 0.44], [5165, 1, 4, 1.36], [12870, 1, 5, 1.68], [3893, 1, 4, 0.2], [2055, 3, 5, 0.56], [1622, 1, 5, 0.88], [417, 2, 4, 0.92], [21793, 1, 5, 0.61], [2054, 3, 5, 2.22], [3889, 1, 4, 0.2], [7573, 1, 10, 2.46], [523, 2, 4, 0.55], [7885, 4, 5, 0.49], [61, 3, 4, 0.98], [9372, 1, 4, 1.42], [10, 2, 5, 0.36], [3891, 1, 4, 0.63], [10149, 3, 17, 1.21], [5208, 3, 6, 0.19], [75, 2, 5, 1.25], [9491, 21, 17, 0.22], [20927, 1, 4, 1.51], [997, 2, 5, 3.04], [12721, 2, 7, 1.46], [35, 1, 5, 1.54], [3, 2, 5, 0.93], [5165, 2, 5, 1.11], [11234, 2, 4, 1.4], [33, 1, 5, 1.18], [998, 2, 4, 1.6], [94, 4, 4, 1.46], [22247, 2, 4, 1.14], [972, 3, 5, 0.75], [5076, 1, 4, 0.71], [6158, 2, 6, 0.2], [34, 1, 4, 1.32], [2805, 137, 4, 1.42], [2912, 2, 7, 1.89], [2424, 80, 4, 1.36], [38, 1, 4, 1.38], [8104, 1, 4, 1.97], [8898, 3, 5, 4.0], [12212, 29, 5, 0.2], [39, 1, 5, 1.35], [13928, 1, 4, 1.32], [11952, 1, 5, 0.66], [1414, 15, 4, 0.39], [24257, 1, 5, 0.52], [7567, 3, 4, 1.58], [2424, 29, 5, 0.66], [3495, 3, 13, 1.25], [9691, 1, 4, 1.47], [11770, 1, 5, 1.08], [192, 3, 10, 1.07], [3048, 3, 5, 0.92], [11490, 1, 4, 0.71], [995, 2, 4, 1.02], [5946, 1, 4, 0.63], [23961, 3, 4, 1.88], [411, 2, 4, 1.1], [11772, 1, 4, 0.68], [632, 11, 13, 0.73], [161, 3, 5, 1.49], [1703, 2, 5, 1.33], [10407, 10, 7, 1.4], [74, 1, 4, 1.6], [13023, 3, 4, 1.51], [1523, 1, 4, 0.56], [4253, 1, 4, 0.39], [5164, 1, 4, 0.64], [2331, 1, 4, 1.16], [1519, 3, 10, 0.39], [21269, 3, 4, 2.05], [1274, 1, 5, 0.2], [10410, 10, 11, 1.94], [3430, 15, 4, 1.7], [12764, 2, 5, 0.43], [1492, 1, 4, 0.38], [972, 1, 4, 1.01], [11236, 2, 4, 0.62], [214, 3, 13, 0.2], [24258, 1, 4, 0.84], [6097, 29, 4, 1.3], [6097, 80, 4, 1.51], [1080, 3, 4, 1.41], [13893, 2, 4, 1.17], [10780, 10, 4, 2.12], [3047, 3, 4, 1.64], [8674, 2, 4, 2.15], [9081, 3, 7, 1.34], [13928, 2, 4, 1.32], [3576, 29, 4, 1.67], [10408, 10, 6, 1.58], [12662, 1, 4, 0.75], [1243, 2, 4, 0.41], [13034, 3, 4, 1.2], [13264, 29, 4, 0.47], [2436, 4, 4, 0.8], [45, 2, 4, 1.17], [2438, 2, 5, 1.18], [11813, 1, 5, 0.48], [3334, 5, 4, 1.37], [7704, 2, 4, 0.6], [20486, 3, 4, 1.51], [1277, 1, 4, 0.65], [11812, 1, 4, 0.48], [8659, 1, 4, 0.41], [10936, 2, 4, 0.79], [305, 2, 162, 3.71], [589, 2, 71, 2.7], [6935, 2, 280, 6.0], [2778, 2, 154, 3.81], [144, 2, 159, 2.24], [8915, 2, 189, 3.19], [2328, 2, 149, 4.03], [6936, 2, 280, 6.0], [8648, 2, 219, 5.96], [205, 2, 108, 2.81], [8650, 2, 257, 4.33], [593, 2, 262, 3.44], [145, 2, 159, 2.88], [146, 2, 159, 2.6], [326, 2, 107, 2.22], [7036, 1, 126, 5.91], [88, 10, 587, 3.29], [2776, 2, 162, 3.2], [141, 2, 153, 3.61], [7004, 1, 55, 3.21], [1446, 2, 150, 2.84], [1124, 2, 216, 2.79], [206, 2, 117, 3.03], [142, 2, 162, 3.48], [2912, 1, 52, 4.91], [11685, 2, 332, 2.96], [10993, 2, 13, 2.36], [7886, 4, 33, 2.14], [5165, 1, 47, 3.82], [12870, 1, 137, 6.0], [3893, 1, 136, 3.6], [2055, 3, 469, 2.83], [1622, 1, 107, 2.58], [417, 2, 162, 3.22], [21793, 1, 235, 2.9], [2054, 3, 512, 4.62], [3889, 1, 136, 4.07], [7573, 1, 341, 6.0], [523, 2, 162, 2.39], [61, 3, 216, 3.63], [9372, 1, 238, 5.09], [10, 2, 103, 3.26], [3891, 1, 144, 2.41], [10149, 3, 853, 5.0], [5208, 3, 558, 2.37], [75, 2, 144, 4.75], [9491, 21, 2148, 3.78], [997, 2, 236, 5.88], [12721, 2, 280, 5.19], [35, 1, 127, 4.43], [3, 2, 118, 4.21], [5165, 2, 375, 3.39], [11234, 2, 64, 3.59], [33, 1, 114, 4.37], [998, 2, 236, 4.39], [94, 4, 136, 4.96], [22247, 2, 280, 3.97], [972, 3, 585, 4.02], [5076, 1, 135, 3.88], [6158, 2, 257, 2.89], [34, 1, 127, 4.45], [2805, 137, 183, 6.0], [2912, 2, 414, 4.77], [2424, 80, 168, 4.11], [38, 1, 127, 4.5]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 5, 1.09], [326, 2, 4, 0.71], [144, 2, 4, 1.05], [11685, 2, 4, 1.87], [11681, 2, 5, 1.37], [589, 2, 5, 0.2], [205, 2, 4, 0.37], [141, 2, 4, 0.53], [593, 2, 6, 0.27], [305, 2, 4, 0.51], [8915, 2, 6, 0.53], [8650, 2, 4, 0.77], [143, 2, 4, 0.38], [2328, 2, 4, 0.42], [6936, 2, 7, 1.85], [2778, 2, 6, 0.2], [206, 2, 4, 0.71], [146, 2, 5, 0.57], [88, 10, 12, 1.39], [7004, 1, 4, 1.37], [9507, 3, 4, 0.36], [7036, 1, 4, 1.73], [145, 2, 4, 0.91], [1446, 2, 4, 0.65], [417, 2, 4, 0.4], [8853, 2, 6, 1.45], [2055, 3, 6, 2.24], [10993, 2, 4, 0.51], [523, 2, 6, 0.53], [11737, 2, 4, 0.98], [75, 2, 4, 0.75], [2050, 3, 4, 1.14], [12870, 1, 4, 1.4], [3840, 1, 4, 0.4], [3893, 1, 4, 0.2], [12350, 1, 4, 1.24], [2057, 3, 5, 1.78], [13028, 3, 4, 0.62], [2054, 3, 4, 1.14], [7084, 3, 5, 1.32], [3889, 1, 5, 0.2], [2991, 3, 4, 0.78], [20927, 1, 4, 1.11], [3, 2, 4, 0.52], [7005, 1, 5, 0.67], [997, 2, 6, 1.03], [94, 4, 4, 2.13], [10, 2, 4, 0.36], [21793, 1, 5, 1.34], [7885, 4, 5, 0.52], [996, 2, 4, 1.05], [3891, 1, 4, 0.45], [5165, 1, 4, 0.65], [998, 2, 4, 0.91], [6158, 2, 4, 2.18], [8672, 2, 5, 1.18], [9491, 21, 10, 0.52], [11739, 2, 4, 1.78], [5165, 2, 5, 0.65], [2912, 1, 4, 2.02], [972, 3, 4, 1.78], [956, 2, 4, 0.35], [413, 1, 4, 0.87], [98, 11, 11, 0.67], [346, 3, 4, 0.44], [10388, 2, 4, 0.6], [411, 2, 4, 1.15], [346, 1, 4, 0.43], [1492, 1, 4, 0.48], [83, 2, 4, 0.42], [7573, 1, 4, 0.97], [8677, 3, 4, 1.96], [7567, 3, 4, 1.47], [5208, 3, 4, 1.03], [410, 1, 4, 0.8], [22316, 3, 6, 0.51], [9372, 1, 4, 0.97], [995, 2, 4, 0.79], [13928, 1, 4, 1.35], [9081, 3, 7, 0.78], [22247, 2, 4, 1.07], [336, 15, 4, 1.17], [308, 1, 4, 0.67], [161, 3, 6, 1.78], [2912, 2, 5, 2.02], [10631, 2, 4, 1.5], [1622, 1, 4, 1.47], [11953, 1, 4, 0.55], [22317, 3, 6, 0.51], [345, 3, 5, 0.76], [23611, 3, 5, 0.55], [9082, 3, 17, 1.08], [229, 1, 4, 1.04], [6497, 1, 4, 1.56], [192, 3, 11, 0.72], [37, 1, 5, 1.16], [24257, 1, 5, 2.97], [972, 1, 5, 0.5], [11767, 1, 4, 0.2], [12271, 2, 4, 2.52], [10410, 10, 6, 1.98], [82, 2, 4, 0.66], [14037, 3, 4, 1.22], [10407, 10, 7, 1.61], [7704, 2, 4, 1.45], [34, 1, 5, 0.93], [74, 1, 4, 0.93], [3048, 3, 4, 1.14], [1413, 15, 4, 0.36], [20498, 3, 5, 0.4], [38, 1, 5, 0.66], [335, 3, 9, 0.88], [2331, 1, 4, 1.54], [12338, 29, 5, 0.2], [215, 4, 4, 2.5], [12721, 2, 4, 0.9], [152, 21, 5, 0.34], [9, 1, 5, 0.2], [9964, 2, 4, 1.35], [1523, 1, 4, 0.44], [4253, 1, 4, 0.34], [11510, 3, 5, 0.99], [45, 2, 4, 1.17], [8673, 2, 4, 2.14], [12764, 2, 5, 0.2], [10093, 3, 9, 0.92], [5209, 3, 4, 1.03], [7705, 2, 4, 1.45], [1703, 2, 4, 1.96], [2805, 137, 4, 0.93], [7706, 2, 4, 2.22], [3047, 3, 4, 0.95], [12212, 29, 5, 0.24], [1895, 3, 4, 2.5], [9971, 2, 4, 0.45], [6935, 2, 262, 5.26], [326, 2, 100, 2.5], [144, 2, 173, 3.31], [11685, 2, 284, 6.0], [11681, 2, 284, 6.0], [589, 2, 157, 2.97], [205, 2, 107, 1.87], [141, 2, 143, 4.17], [593, 2, 233, 3.46], [305, 2, 136, 3.63], [8915, 2, 186, 2.06], [8650, 2, 206, 3.55], [143, 2, 163, 3.14], [2328, 2, 165, 1.94], [6936, 2, 262, 6.0], [2778, 2, 144, 3.76], [206, 2, 106, 2.7], [146, 2, 156, 3.93], [88, 10, 524, 3.54], [7004, 1, 85, 3.77], [9507, 3, 73, 1.53], [7036, 1, 118, 4.97], [145, 2, 165, 2.87], [1446, 2, 147, 2.85], [417, 2, 151, 2.06], [8853, 2, 262, 5.07], [2055, 3, 421, 6.0], [10993, 2, 58, 2.11], [523, 2, 143, 3.75], [11737, 2, 61, 3.02], [75, 2, 159, 3.26], [2050, 3, 484, 5.31], [12870, 1, 148, 4.94], [3840, 1, 103, 1.78], [3893, 1, 122, 1.96], [12350, 1, 593, 5.04], [2057, 3, 421, 6.0], [13028, 3, 159, 2.38], [2054, 3, 484, 5.31], [7084, 3, 120, 4.13], [3889, 1, 116, 2.88], [2991, 3, 166, 4.52], [20927, 1, 80, 3.27], [3, 2, 129, 2.12], [7005, 1, 77, 2.67], [997, 2, 220, 3.69], [94, 4, 125, 5.23], [21793, 1, 230, 4.18], [996, 2, 257, 4.15], [3891, 1, 135, 2.0], [5165, 1, 51, 3.25], [998, 2, 257, 4.15], [6158, 2, 278, 5.33], [8672, 2, 265, 5.08], [9491, 21, 2047, 3.04], [11739, 2, 14, 4.06], [5165, 2, 410, 3.24], [2912, 1, 48, 5.09], [972, 3, 212, 4.72], [956, 2, 117, 1.8], [413, 1, 93, 2.8], [98, 11, 805, 3.22], [346, 3, 666, 1.99], [10388, 2, 214, 2.28], [411, 2, 100, 3.34]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 9, 0.47], [362, 2, 5, 0.7], [2049, 3, 12, 0.2], [589, 2, 6, 0.2], [3, 2, 4, 1.01], [75, 2, 5, 0.49], [1776, 1, 4, 0.58], [141, 2, 5, 1.05], [8672, 2, 6, 0.72], [130, 1, 4, 0.4], [205, 2, 4, 0.46], [2778, 2, 6, 0.2], [11681, 2, 5, 2.33], [1777, 1, 5, 0.93], [305, 2, 4, 0.49], [6936, 2, 5, 1.27], [8648, 2, 5, 0.77], [593, 2, 7, 0.72], [990, 2, 4, 0.39], [2328, 2, 6, 0.2], [248, 1, 4, 0.37], [88, 10, 12, 0.33], [1007, 2, 6, 0.37], [83, 2, 4, 0.5], [345, 3, 5, 0.32], [5151, 2, 4, 0.65], [8650, 2, 5, 1.15], [412, 1, 4, 1.27], [361, 2, 4, 0.49], [22247, 2, 5, 0.97], [201, 3, 6, 0.32], [57, 1, 6, 0.2], [21793, 1, 4, 1.03], [10149, 3, 17, 1.32], [45, 2, 5, 1.12], [12721, 2, 6, 0.97], [7004, 1, 5, 0.47], [2054, 3, 5, 1.33], [10825, 21, 8, 1.16], [413, 1, 4, 1.45], [167, 3, 5, 1.09], [2057, 3, 5, 1.62], [74, 1, 4, 0.84], [6158, 2, 6, 0.87], [308, 1, 5, 0.72], [168, 3, 6, 0.74], [432, 3, 5, 0.39], [10, 2, 5, 0.2], [13028, 3, 5, 0.5], [7887, 4, 5, 0.4], [7036, 1, 5, 1.96], [3495, 3, 15, 0.92], [214, 3, 10, 0.42], [12870, 1, 4, 2.58], [335, 3, 15, 0.4], [5081, 2, 5, 0.2], [79, 1, 4, 0.2], [5208, 3, 7, 0.18], [9827, 3, 4, 0.2], [410, 1, 4, 0.8], [3889, 1, 5, 0.2], [95, 3, 13, 1.11], [5812, 3, 6, 1.21], [3893, 1, 5, 0.2], [1504, 2, 4, 0.2], [13260, 29, 4, 0.85], [23, 1, 4, 1.51], [94, 4, 4, 2.4], [7005, 1, 5, 0.49], [1490, 1, 4, 1.04], [411, 2, 4, 0.74], [25, 1, 4, 1.76], [998, 2, 4, 0.69], [1124, 2, 5, 0.79], [3980, 4, 4, 1.4], [21269, 3, 4, 3.75], [10574, 3, 5, 0.42], [5086, 1, 6, 1.11], [9691, 1, 4, 2.15], [856, 1, 4, 0.2], [2878, 1, 4, 1.82], [5660, 2, 5, 2.37], [11914, 1, 6, 0.2], [997, 2, 5, 1.37], [20927, 1, 4, 0.61], [9829, 3, 4, 1.06], [1703, 2, 4, 1.38], [8676, 2, 4, 0.97], [5209, 3, 6, 0.18], [9081, 3, 10, 1.8], [1622, 1, 6, 0.35], [192, 3, 11, 2.4], [952, 4, 4, 2.89], [20498, 1, 4, 0.93], [8674, 2, 4, 1.22], [8898, 3, 6, 2.67], [5513, 2, 4, 0.52], [1070, 7, 8, 0.64], [996, 2, 4, 1.37], [1091, 1, 4, 0.2], [12661, 1, 4, 2.6], [14037, 3, 4, 0.47], [13034, 3, 6, 1.01], [6097, 29, 4, 0.2], [1519, 3, 14, 0.22], [22317, 3, 6, 0.51], [24, 1, 5, 1.6], [20498, 3, 6, 1.52], [8274, 3, 6, 1.09], [4203, 1, 5, 0.53], [10529, 29, 4, 1.19], [9760, 29, 4, 0.2], [82, 2, 4, 0.72], [6097, 80, 4, 0.41], [1413, 15, 4, 0.37], [336, 15, 4, 0.35], [9082, 3, 18, 1.17], [11767, 1, 4, 0.47], [2104, 3, 6, 1.63], [23611, 3, 4, 1.3], [995, 2, 4, 0.98], [6098, 80, 4, 1.4], [66, 1, 4, 0.2], [11769, 1, 4, 0.47], [6098, 29, 4, 0.6], [66, 16, 4, 0.47], [13484, 1, 4, 1.93], [8945, 3, 5, 0.98], [2109, 3, 9, 0.46], [10780, 10, 4, 2.28], [20486, 1, 4, 2.5], [9372, 1, 5, 0.42], [5946, 1, 4, 1.36], [2537, 1, 4, 1.19], [972, 3, 5, 1.01], [6935, 2, 278, 4.7], [362, 2, 147, 2.58], [2049, 3, 486, 2.4], [589, 2, 137, 1.65], [3, 2, 124, 3.17], [75, 2, 131, 4.14], [1776, 1, 97, 3.47], [141, 2, 137, 3.39], [8672, 2, 253, 3.31], [130, 1, 62, 1.72], [205, 2, 56, 2.96], [2778, 2, 154, 3.46], [11681, 2, 277, 6.0], [1777, 1, 97, 4.13], [305, 2, 131, 3.03], [6936, 2, 283, 5.08], [8648, 2, 221, 5.61], [593, 2, 223, 3.28], [990, 2, 55, 1.7], [2328, 2, 150, 3.34], [88, 10, 502, 4.75], [1007, 2, 253, 1.99], [83, 2, 48, 2.11], [345, 3, 284, 2.29], [5151, 2, 26, 2.64], [8650, 2, 221, 5.65], [412, 1, 74, 4.09], [361, 2, 137, 3.58], [22247, 2, 267, 3.35], [201, 3, 284, 2.2], [57, 1, 76, 2.84], [21793, 1, 236, 6.0], [10149, 3, 768, 5.15], [45, 2, 98, 5.05], [12721, 2, 267, 2.73], [7004, 1, 71, 2.68], [2054, 3, 440, 4.17], [10825, 21, 608, 3.05], [413, 1, 81, 3.74], [167, 3, 202, 4.11], [2057, 3, 417, 4.35], [74, 1, 179, 4.92], [6158, 2, 243, 3.8], [308, 1, 158, 3.39], [168, 3, 360, 3.79], [432, 3, 268, 2.76], [10, 2, 86, 2.95], [13028, 3, 131, 3.33], [7887, 4, 125, 1.92], [7036, 1, 113, 5.95], [3495, 3, 855, 4.0], [214, 3, 574, 1.92], [5081, 2, 171, 3.4], [79, 1, 43, 2.25], [5208, 3, 499, 4.35], [9827, 3, 78, 3.26], [410, 1, 73, 2.95], [3889, 1, 109, 4.11], [95, 3, 981, 4.54], [5812, 3, 596, 4.23], [3893, 1, 109, 3.58], [1504, 2, 202, 3.29], [13260, 29, 64, 3.25], [23, 1, 104, 3.86], [94, 4, 106, 5.57]]</t>
-  </si>
-  <si>
-    <t>[[589, 2, 6, 0.2], [88, 10, 12, 0.19], [8915, 2, 5, 0.2], [6935, 2, 7, 1.69], [2778, 2, 5, 0.2], [305, 2, 6, 0.45], [2328, 2, 4, 0.26], [326, 2, 5, 0.72], [6936, 2, 6, 1.66], [8650, 2, 5, 2.46], [8648, 2, 5, 1.7], [1446, 2, 4, 0.2], [7004, 1, 4, 0.99], [205, 2, 4, 0.87], [2775, 2, 4, 0.93], [144, 2, 5, 1.04], [10, 2, 5, 0.2], [1124, 2, 4, 0.57], [94, 4, 4, 1.46], [7885, 4, 4, 0.49], [3893, 1, 5, 0.2], [7886, 4, 4, 0.48], [141, 2, 4, 0.92], [146, 2, 6, 1.32], [3891, 1, 4, 0.2], [2055, 3, 5, 0.98], [75, 2, 5, 0.99], [21793, 1, 5, 0.86], [206, 2, 4, 0.71], [12349, 1, 4, 2.14], [10993, 2, 4, 0.2], [5208, 3, 7, 0.19], [2054, 3, 4, 2.22], [3889, 1, 6, 0.2], [3980, 4, 6, 1.21], [7005, 1, 4, 0.93], [12870, 1, 4, 1.93], [145, 2, 4, 1.5], [5165, 1, 4, 0.9], [2912, 1, 4, 1.89], [10149, 3, 13, 1.71], [20927, 1, 4, 1.68], [9760, 29, 4, 0.2], [998, 2, 4, 1.6], [2436, 4, 4, 0.2], [7887, 4, 4, 0.97], [417, 2, 4, 0.92], [997, 2, 4, 1.02], [2424, 80, 5, 1.11], [3, 2, 5, 0.37], [6158, 2, 5, 0.2], [632, 11, 12, 0.73], [5076, 1, 6, 0.56], [9491, 21, 10, 1.09], [972, 3, 6, 0.51], [229, 1, 5, 1.16], [214, 3, 9, 0.56], [74, 1, 5, 1.22], [3495, 3, 10, 1.28], [523, 2, 4, 0.55], [11770, 1, 4, 1.09], [7573, 1, 9, 2.71], [11953, 1, 5, 0.45], [5165, 2, 5, 0.9], [24257, 1, 4, 0.48], [12721, 2, 4, 0.9], [2423, 80, 4, 1.97], [1492, 1, 4, 0.38], [12350, 1, 4, 4.0], [11772, 1, 4, 0.68], [192, 3, 10, 1.07], [1622, 1, 5, 0.49], [2912, 2, 7, 2.28], [22317, 3, 4, 0.42], [8677, 3, 4, 1.3], [2438, 2, 5, 1.88], [5434, 1, 4, 1.41], [8898, 3, 5, 4.0], [823, 1, 5, 0.4], [361, 2, 4, 0.92], [2424, 29, 4, 0.78], [9372, 1, 4, 1.36], [4253, 1, 4, 0.39], [3975, 4, 4, 1.51], [3900, 3, 5, 0.46], [33, 1, 5, 0.47], [5209, 3, 7, 0.19], [6496, 1, 4, 1.69], [7567, 3, 4, 1.18], [37, 1, 5, 0.47], [5946, 1, 4, 0.2], [2805, 137, 4, 1.35], [335, 3, 9, 0.49], [11812, 1, 4, 0.22], [12764, 2, 5, 0.2], [10407, 10, 8, 1.44], [220, 4, 4, 1.76], [6097, 80, 4, 0.66], [972, 1, 4, 1.01], [1703, 2, 4, 0.56], [10388, 2, 4, 0.61], [24258, 1, 4, 0.84], [1339, 3, 10, 0.36], [11490, 1, 4, 0.5], [38, 1, 4, 0.84], [35, 1, 5, 0.47], [1414, 15, 4, 0.39], [1274, 1, 4, 0.56], [22247, 2, 4, 1.06], [161, 3, 5, 1.49], [11236, 2, 4, 0.62], [4232, 80, 4, 1.82], [2104, 3, 9, 0.72], [1895, 3, 4, 0.88], [12212, 29, 5, 0.2], [12979, 25, 7, 0.47], [13893, 2, 4, 1.17], [10631, 2, 4, 1.55], [8659, 1, 4, 0.41], [11813, 1, 4, 0.88], [216, 4, 4, 0.61], [1309, 1, 4, 0.45], [8635, 3, 4, 0.87], [10093, 3, 8, 0.92], [12728, 1, 4, 1.2], [4940, 1, 4, 0.51], [8104, 1, 4, 1.97], [8274, 3, 4, 0.87], [76, 2, 4, 0.47], [788, 2, 4, 0.51], [12501, 1, 4, 1.24], [13928, 1, 4, 1.58], [5164, 1, 4, 0.64], [11942, 29, 4, 0.52], [10386, 2, 4, 0.77], [19931, 1, 4, 1.26], [589, 2, 152, 2.97], [88, 10, 558, 3.67], [8915, 2, 189, 3.19], [6935, 2, 280, 6.0], [2778, 2, 154, 3.81], [305, 2, 162, 3.71], [2328, 2, 149, 4.28], [326, 2, 107, 3.65], [6936, 2, 280, 6.0], [8650, 2, 219, 6.0], [8648, 2, 231, 4.48], [1446, 2, 150, 3.82], [7004, 1, 18, 3.12], [205, 2, 114, 2.87], [2775, 2, 181, 2.99], [144, 2, 151, 3.98], [10, 2, 24, 2.72], [1124, 2, 216, 2.79], [94, 4, 136, 4.96], [3893, 1, 136, 3.6], [7886, 4, 33, 1.59], [141, 2, 162, 3.48], [146, 2, 151, 3.93], [3891, 1, 136, 3.65], [2055, 3, 495, 3.11], [75, 2, 144, 4.87], [21793, 1, 235, 2.86], [206, 2, 113, 2.57], [12349, 1, 693, 5.33], [10993, 2, 19, 1.98], [5208, 3, 558, 3.42], [2054, 3, 162, 5.16], [3889, 1, 136, 4.07], [3980, 4, 476, 4.77], [7005, 1, 83, 2.99], [12870, 1, 137, 6.0], [5165, 1, 50, 3.27], [2912, 1, 52, 4.91], [10149, 3, 853, 5.0], [9760, 29, 71, 3.39], [998, 2, 272, 5.2], [2436, 4, 114, 2.69], [417, 2, 162, 3.48], [997, 2, 236, 3.69], [2424, 80, 168, 4.11], [3, 2, 118, 4.21], [6158, 2, 257, 2.89], [632, 11, 855, 2.6], [5076, 1, 128, 3.98], [9491, 21, 2261, 4.29], [972, 3, 585, 4.02], [229, 1, 81, 4.37], [214, 3, 529, 2.18], [74, 1, 208, 6.0], [3495, 3, 1114, 3.77], [523, 2, 162, 2.39], [11770, 1, 237, 5.03], [7573, 1, 341, 6.0], [11953, 1, 197, 2.8], [5165, 2, 395, 3.28], [24257, 1, 139, 2.65], [12721, 2, 328, 2.93], [1492, 1, 43, 2.34], [12350, 1, 693, 6.0]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 6, 1.34], [305, 2, 4, 0.51], [2778, 2, 6, 0.2], [6936, 2, 6, 1.35], [205, 2, 6, 0.2], [88, 10, 8, 0.19], [144, 2, 5, 0.47], [11681, 2, 5, 1.61], [8915, 2, 5, 0.86], [589, 2, 5, 0.2], [326, 2, 5, 0.7], [2327, 2, 5, 0.2], [8650, 2, 6, 1.21], [7036, 1, 4, 1.48], [593, 2, 7, 0.27], [11685, 2, 4, 1.9], [3893, 1, 5, 0.2], [141, 2, 7, 0.53], [2775, 2, 4, 1.06], [206, 2, 4, 0.65], [9507, 3, 4, 0.36], [7004, 1, 4, 0.94], [3840, 1, 4, 0.4], [3980, 4, 6, 1.19], [143, 2, 5, 1.53], [3891, 1, 4, 0.2], [2050, 3, 4, 1.69], [146, 2, 5, 1.32], [7885, 4, 5, 0.2], [7886, 4, 5, 0.4], [3889, 1, 4, 0.35], [2055, 3, 5, 1.73], [2328, 2, 4, 0.42], [10, 2, 4, 0.36], [2054, 3, 6, 1.86], [362, 2, 5, 0.82], [12870, 1, 6, 1.4], [8672, 2, 6, 0.73], [10993, 2, 5, 0.63], [12349, 1, 4, 1.96], [3975, 4, 4, 1.39], [7084, 3, 4, 1.07], [21793, 1, 4, 1.34], [5165, 1, 4, 0.9], [2057, 3, 4, 2.02], [1446, 2, 4, 0.9], [75, 2, 4, 0.46], [5208, 3, 4, 1.03], [145, 2, 4, 1.3], [2991, 3, 4, 1.13], [523, 2, 5, 1.03], [94, 4, 4, 2.13], [3982, 3, 14, 1.42], [7005, 1, 4, 0.72], [3495, 3, 13, 1.14], [20927, 1, 4, 1.42], [997, 2, 4, 0.77], [7887, 4, 5, 1.2], [6158, 2, 4, 2.18], [2912, 1, 4, 2.02], [82, 2, 5, 0.66], [61, 3, 5, 1.41], [192, 3, 10, 1.01], [35, 1, 5, 1.58], [956, 2, 4, 0.35], [417, 2, 4, 0.4], [5165, 2, 5, 0.65], [22316, 3, 6, 0.51], [6497, 1, 4, 1.56], [998, 2, 4, 0.91], [11953, 1, 6, 0.2], [7567, 3, 4, 0.71], [286, 3, 4, 0.72], [11769, 1, 5, 0.96], [389, 4, 4, 0.85], [1492, 1, 4, 0.48], [996, 2, 7, 1.47], [346, 3, 5, 1.28], [12344, 1, 4, 1.02], [4176, 4, 5, 1.31], [11767, 1, 4, 0.78], [39, 1, 4, 1.04], [7573, 1, 5, 1.22], [410, 1, 4, 0.62], [6496, 1, 4, 0.46], [37, 1, 4, 0.91], [8677, 3, 5, 1.15], [972, 3, 5, 2.02], [74, 1, 4, 0.93], [12721, 2, 4, 1.22], [411, 2, 4, 0.64], [2104, 3, 6, 1.46], [11490, 1, 4, 0.54], [2436, 4, 5, 2.37], [12212, 29, 4, 0.2], [22317, 3, 5, 0.26], [2912, 2, 5, 2.02], [201, 3, 5, 0.51], [345, 3, 4, 0.5], [336, 15, 5, 1.17], [1413, 15, 4, 0.2], [1274, 1, 4, 1.01], [11085, 2, 6, 1.78], [8121, 3, 4, 0.5], [1277, 1, 5, 0.65], [3979, 3, 5, 1.18], [3, 2, 6, 0.46], [14037, 3, 4, 1.22], [21269, 3, 4, 3.49], [823, 1, 4, 0.56], [38, 1, 4, 0.91], [13023, 3, 4, 1.52], [6494, 1, 4, 0.46], [9, 1, 4, 0.2], [12271, 2, 4, 2.52], [8673, 2, 4, 2.14], [36, 1, 4, 0.66], [9784, 1, 4, 0.48], [22247, 2, 5, 1.39], [8676, 2, 5, 0.98], [10408, 10, 5, 1.4], [3577, 25, 4, 0.78], [2805, 137, 4, 0.93], [5209, 3, 4, 1.03], [1414, 15, 4, 0.2], [20498, 3, 6, 0.4], [10936, 2, 4, 0.45], [95, 3, 12, 0.5], [2878, 1, 4, 1.16], [11812, 1, 4, 0.22], [10388, 2, 4, 0.6], [9491, 21, 11, 0.59], [13928, 1, 5, 1.1], [346, 1, 5, 1.52], [399, 24, 4, 2.63], [6935, 2, 262, 5.51], [305, 2, 136, 3.63], [2778, 2, 169, 2.2], [6936, 2, 262, 5.89], [205, 2, 111, 2.78], [88, 10, 524, 3.54], [144, 2, 55, 3.98], [11681, 2, 275, 5.79], [8915, 2, 186, 2.64], [589, 2, 157, 2.97], [326, 2, 86, 3.24], [2327, 2, 154, 3.43], [8650, 2, 206, 5.17], [7036, 1, 118, 4.97], [593, 2, 233, 3.46], [11685, 2, 299, 4.85], [3893, 1, 122, 1.89], [141, 2, 143, 4.17], [2775, 2, 169, 3.17], [206, 2, 100, 2.63], [9507, 3, 73, 1.53], [7004, 1, 80, 3.65], [3840, 1, 103, 1.78], [3980, 4, 443, 5.08], [143, 2, 54, 3.88], [3891, 1, 116, 2.55], [2050, 3, 421, 6.0], [146, 2, 140, 3.93], [7886, 4, 52, 1.85], [3889, 1, 135, 1.8], [2055, 3, 421, 6.0], [2328, 2, 165, 1.94], [2054, 3, 421, 6.0], [362, 2, 137, 3.93], [12870, 1, 126, 6.0], [8672, 2, 265, 5.08], [10993, 2, 50, 2.94], [12349, 1, 623, 5.04], [3975, 4, 467, 3.89], [7084, 3, 120, 4.13], [21793, 1, 230, 3.71], [5165, 1, 46, 3.27], [2057, 3, 421, 6.0], [1446, 2, 163, 2.85], [75, 2, 144, 2.02], [5208, 3, 531, 4.39], [145, 2, 55, 3.71], [2991, 3, 154, 3.83], [523, 2, 143, 3.75], [94, 4, 125, 5.23], [3982, 3, 729, 5.02], [7005, 1, 80, 2.77], [3495, 3, 1034, 4.98], [20927, 1, 85, 3.95], [997, 2, 257, 4.15], [6158, 2, 278, 5.33], [2912, 1, 48, 5.09], [82, 2, 55, 2.63], [61, 3, 201, 3.83], [192, 3, 1307, 4.82], [35, 1, 27, 4.11], [956, 2, 117, 1.8], [417, 2, 151, 2.31], [5165, 2, 410, 3.24], [22316, 3, 291, 3.17]]</t>
-  </si>
-  <si>
-    <t>[[141, 2, 5, 0.2], [8650, 2, 4, 1.46], [361, 2, 4, 0.2], [5491, 2, 5, 0.2], [589, 2, 5, 0.2], [11685, 2, 4, 0.2], [417, 2, 4, 0.2], [326, 2, 4, 0.55], [6935, 2, 13, 1.06], [205, 2, 4, 0.2], [1124, 2, 5, 0.57], [8648, 2, 4, 0.91], [12721, 2, 5, 0.48], [248, 1, 4, 0.26], [11838, 2, 5, 0.63], [11837, 2, 4, 0.83], [142, 2, 4, 0.2], [8915, 2, 4, 0.38], [6936, 2, 6, 1.25], [2778, 2, 6, 0.2], [8676, 2, 4, 2.86], [9507, 3, 4, 0.35], [305, 2, 5, 1.23], [21793, 1, 4, 1.54], [22247, 2, 5, 1.0], [11835, 2, 4, 0.73], [593, 2, 5, 0.78], [616, 2, 6, 0.2], [411, 2, 4, 0.64], [990, 2, 4, 0.2], [10574, 3, 7, 1.5], [12353, 1, 4, 3.55], [8673, 2, 4, 0.97], [2775, 2, 4, 0.48], [145, 2, 4, 0.91], [6158, 2, 5, 0.89], [11836, 2, 4, 0.63], [2055, 3, 4, 0.8], [3495, 3, 13, 1.34], [10149, 3, 13, 0.75], [88, 10, 8, 1.2], [12344, 1, 4, 2.77], [146, 2, 4, 0.91], [75, 2, 4, 1.68], [2054, 3, 6, 0.8], [2057, 3, 4, 0.8], [10993, 2, 5, 0.4], [7705, 2, 5, 1.15], [12343, 1, 4, 3.55], [7885, 4, 5, 0.94], [61, 3, 4, 0.36], [2424, 29, 4, 1.45], [144, 2, 4, 0.91], [7704, 2, 5, 1.15], [2859, 15, 4, 0.63], [2423, 29, 4, 1.26], [5165, 1, 4, 0.86], [2423, 80, 4, 1.23], [201, 3, 6, 0.76], [335, 3, 10, 0.88], [308, 1, 6, 1.85], [9126, 1, 4, 0.81], [13028, 3, 4, 0.49], [1519, 3, 12, 0.22], [214, 3, 9, 0.96], [2424, 80, 4, 1.39], [12352, 1, 4, 3.55], [7004, 1, 4, 1.29], [345, 3, 5, 0.49], [13023, 3, 6, 1.51], [13034, 3, 5, 1.37], [6952, 1, 4, 0.98], [2703, 3, 4, 2.44], [11770, 1, 4, 1.14], [6494, 1, 4, 0.47], [3430, 15, 4, 0.8], [410, 1, 4, 0.52], [432, 3, 5, 1.01], [94, 4, 4, 1.96], [13928, 1, 4, 1.15], [1492, 1, 4, 0.83], [20927, 1, 4, 0.67], [1886, 2, 4, 0.44], [3893, 1, 4, 0.47], [2331, 1, 4, 0.79], [12347, 1, 4, 0.51], [3891, 1, 4, 2.96], [3981, 3, 10, 0.29], [11811, 1, 4, 0.38], [13033, 3, 4, 0.5], [11954, 1, 4, 0.66], [9690, 1, 4, 0.76], [114, 3, 4, 0.36], [952, 4, 4, 2.24], [1309, 1, 4, 0.92], [105, 3, 4, 0.35], [1274, 1, 4, 1.18], [5584, 3, 4, 1.16], [5946, 1, 4, 0.51], [7886, 4, 6, 0.94], [5733, 2, 5, 0.43], [5812, 3, 4, 1.51], [11089, 1, 4, 1.02], [3, 2, 4, 0.91], [7708, 2, 4, 0.74], [8898, 3, 4, 2.11], [10410, 10, 8, 1.65], [7703, 2, 4, 0.74], [95, 3, 8, 2.52], [3478, 2, 4, 0.85], [10407, 10, 8, 1.65], [9507, 1, 4, 0.36], [22558, 3, 4, 0.88], [8274, 3, 4, 0.58], [3980, 4, 4, 1.39], [9082, 3, 15, 0.83], [957, 2, 4, 0.36], [5165, 2, 5, 0.84], [20555, 2, 4, 0.59], [10408, 10, 6, 0.75], [192, 3, 10, 2.2], [10398, 2, 4, 1.31], [247, 1, 4, 1.21], [963, 3, 4, 0.89], [823, 1, 4, 2.42], [13264, 29, 4, 0.48], [11603, 2, 4, 1.37], [2805, 137, 5, 1.98], [7005, 1, 4, 0.86], [5811, 3, 5, 2.0], [6630, 3, 4, 1.83], [20969, 3, 4, 0.86], [186, 3, 9, 1.23], [9491, 21, 10, 3.02], [21003, 2, 4, 0.72], [12229, 2, 4, 0.45], [141, 2, 160, 3.3], [8650, 2, 225, 5.35], [361, 2, 167, 2.01], [5491, 2, 111, 2.33], [589, 2, 163, 2.41], [11685, 2, 286, 4.02], [417, 2, 167, 2.02], [326, 2, 98, 2.49], [6935, 2, 288, 6.0], [205, 2, 111, 2.05], [1124, 2, 199, 2.9], [8648, 2, 238, 3.22], [12721, 2, 290, 4.49], [248, 1, 15, 2.19], [11838, 2, 265, 4.05], [11837, 2, 265, 2.91], [142, 2, 167, 2.0], [8915, 2, 52, 1.48], [6936, 2, 288, 5.61], [2778, 2, 161, 3.87], [8676, 2, 112, 6.0], [305, 2, 151, 3.93], [21793, 1, 254, 4.71], [22247, 2, 299, 3.59], [11835, 2, 265, 2.72], [593, 2, 243, 2.76], [616, 2, 111, 2.52], [411, 2, 115, 2.62], [990, 2, 56, 2.04], [12353, 1, 642, 6.0], [8673, 2, 304, 4.22], [2775, 2, 167, 2.23], [145, 2, 163, 3.06], [6158, 2, 279, 3.46], [11836, 2, 265, 4.64], [2055, 3, 501, 4.03], [3495, 3, 1026, 3.97], [10149, 3, 934, 2.81], [88, 10, 569, 4.74], [12344, 1, 642, 6.0], [146, 2, 163, 3.06], [75, 2, 152, 4.79], [2054, 3, 450, 3.36], [2057, 3, 501, 4.51], [10993, 2, 54, 2.81], [7705, 2, 180, 4.05], [12343, 1, 642, 6.0], [61, 3, 223, 2.0], [2424, 29, 35, 5.04], [144, 2, 163, 3.06], [7704, 2, 180, 4.05], [2859, 15, 73, 2.52], [2423, 29, 38, 3.74], [5165, 1, 51, 2.97], [2423, 80, 192, 3.71], [201, 3, 306, 4.73], [335, 3, 1375, 2.99], [308, 1, 171, 5.25], [9126, 1, 73, 4.46], [13028, 3, 154, 2.55], [1519, 3, 869, 2.5], [214, 3, 684, 3.08], [2424, 80, 174, 4.99], [12352, 1, 642, 6.0]]</t>
-  </si>
-  <si>
-    <t>[[2778, 2, 10, 0.2], [6935, 2, 7, 0.77], [305, 2, 5, 0.23], [6936, 2, 5, 1.17], [2775, 2, 4, 0.72], [145, 2, 5, 1.17], [12721, 2, 6, 0.72], [2327, 2, 5, 0.2], [361, 2, 5, 0.4], [146, 2, 5, 0.87], [8675, 2, 4, 0.73], [362, 2, 5, 0.44], [141, 2, 4, 0.4], [11681, 2, 5, 0.46], [205, 2, 5, 0.2], [8673, 2, 6, 0.73], [8676, 2, 6, 0.6], [308, 1, 6, 0.43], [1124, 2, 5, 0.79], [144, 2, 5, 1.17], [11835, 2, 4, 0.42], [5493, 2, 4, 0.45], [417, 2, 4, 0.4], [8650, 2, 5, 1.28], [11837, 2, 6, 0.3], [3, 2, 5, 1.09], [6097, 80, 5, 2.61], [589, 2, 4, 0.9], [2423, 29, 4, 1.19], [206, 2, 4, 0.64], [6097, 29, 4, 2.36], [11836, 2, 6, 0.45], [593, 2, 6, 1.3], [990, 2, 4, 0.2], [6098, 80, 4, 2.84], [88, 10, 10, 0.44], [523, 2, 4, 0.76], [13260, 29, 4, 1.4], [2423, 80, 4, 0.87], [8915, 2, 5, 0.53], [10993, 2, 4, 0.52], [6494, 1, 4, 0.47], [326, 2, 4, 0.6], [6158, 2, 5, 0.89], [75, 2, 5, 1.56], [10574, 3, 5, 0.83], [1339, 1, 4, 0.43], [335, 3, 10, 0.88], [1492, 1, 4, 0.83], [1050, 2, 4, 0.2], [411, 2, 4, 0.64], [947, 15, 4, 0.76], [151, 1, 4, 0.45], [2859, 15, 4, 0.72], [7004, 1, 4, 0.82], [1339, 3, 14, 0.18], [6496, 1, 4, 1.31], [13264, 29, 4, 0.52], [345, 3, 4, 1.71], [10149, 3, 13, 0.39], [61, 3, 5, 0.2], [7704, 2, 5, 1.79], [1049, 2, 4, 0.85], [1243, 2, 4, 1.92], [964, 15, 4, 0.84], [432, 3, 4, 1.4], [13259, 29, 5, 0.99], [22558, 3, 4, 1.98], [201, 3, 6, 1.05], [1277, 1, 4, 1.3], [5208, 3, 4, 1.35], [7705, 2, 5, 2.04], [2912, 1, 4, 1.99], [963, 3, 4, 0.39], [159, 3, 5, 0.6], [229, 1, 4, 1.04], [186, 3, 9, 0.67], [2438, 1, 4, 1.21], [21793, 1, 4, 1.38], [11738, 2, 4, 0.46], [2331, 1, 4, 1.3], [10407, 10, 6, 1.9], [3478, 2, 4, 1.58], [7706, 2, 5, 1.79], [12229, 2, 6, 0.45], [13928, 1, 4, 1.4], [1548, 1, 5, 0.84], [2703, 3, 4, 2.44], [11844, 2, 4, 2.06], [8944, 3, 4, 0.37], [11490, 1, 4, 0.83], [7036, 1, 4, 0.76], [94, 4, 4, 1.96], [159, 16, 4, 0.69], [114, 3, 4, 0.41], [11687, 2, 4, 0.79], [956, 2, 4, 0.52], [9126, 1, 4, 1.39], [10408, 10, 7, 1.66], [7708, 2, 5, 1.79], [1886, 2, 4, 0.44], [11159, 1, 7, 0.4], [10406, 10, 7, 0.92], [22125, 2, 4, 0.36], [20927, 1, 5, 0.47], [11586, 1, 6, 2.44], [11689, 2, 4, 0.77], [9065, 2, 4, 0.66], [2438, 2, 5, 1.11], [12870, 1, 4, 0.94], [11690, 2, 4, 0.53], [7005, 1, 4, 1.52], [1274, 1, 4, 1.57], [410, 1, 4, 0.52], [1699, 3, 4, 1.18], [2991, 3, 5, 2.12], [2805, 137, 5, 1.58], [21781, 2, 4, 0.22], [152, 21, 4, 0.63], [13259, 25, 4, 0.99], [4253, 1, 4, 0.43], [3495, 3, 13, 1.34], [5976, 1, 4, 2.19], [159, 1, 4, 0.67], [5584, 3, 4, 1.16], [9690, 1, 4, 0.76], [5769, 3, 6, 0.52], [7007, 1, 4, 0.73], [9239, 29, 4, 1.55], [9209, 29, 4, 1.53], [9491, 21, 10, 1.42], [11811, 1, 4, 0.38], [9239, 25, 4, 1.55], [7886, 4, 4, 0.45], [8600, 1, 4, 0.36], [5769, 1, 4, 0.46], [2778, 2, 158, 3.61], [6935, 2, 307, 3.37], [305, 2, 151, 3.96], [6936, 2, 290, 5.43], [2775, 2, 166, 2.7], [145, 2, 41, 3.46], [12721, 2, 289, 4.72], [2327, 2, 153, 4.86], [361, 2, 165, 2.08], [146, 2, 154, 3.93], [8675, 2, 298, 2.92], [362, 2, 151, 2.79], [141, 2, 165, 2.08], [11681, 2, 270, 3.74], [205, 2, 115, 2.57], [8673, 2, 291, 5.08], [8676, 2, 292, 5.81], [308, 1, 180, 3.47], [1124, 2, 197, 3.05], [144, 2, 102, 3.98], [11835, 2, 265, 3.53], [5493, 2, 117, 2.19], [417, 2, 165, 3.25], [8650, 2, 225, 6.0], [11837, 2, 265, 2.8], [3, 2, 122, 3.99], [6097, 80, 18, 6.0], [589, 2, 161, 3.07], [2423, 29, 39, 4.24], [206, 2, 86, 3.35], [11836, 2, 265, 3.97], [593, 2, 54, 4.02], [990, 2, 53, 2.31], [88, 10, 596, 3.71], [523, 2, 165, 3.02], [13260, 29, 73, 4.01], [2423, 80, 195, 3.03], [8915, 2, 153, 2.75], [10993, 2, 57, 2.31], [6494, 1, 55, 2.21], [326, 2, 94, 2.86], [6158, 2, 279, 3.46], [75, 2, 146, 4.56], [10574, 3, 272, 3.58], [1339, 1, 73, 2.26], [335, 3, 1375, 2.99], [1492, 1, 39, 2.91], [1050, 2, 107, 2.05], [411, 2, 114, 2.68], [947, 15, 44, 2.77], [151, 1, 18, 2.22], [2859, 15, 55, 3.36], [7004, 1, 83, 3.97], [1339, 3, 1760, 2.18], [6496, 1, 42, 5.33], [13264, 29, 77, 2.31], [345, 3, 315, 4.6], [10149, 3, 927, 2.79], [61, 3, 223, 2.16], [7704, 2, 159, 5.65], [1049, 2, 30, 2.45], [1243, 2, 100, 5.01], [432, 3, 306, 4.01], [13259, 29, 37, 4.14]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 6, 0.66], [141, 2, 4, 0.23], [2778, 2, 8, 0.2], [362, 2, 5, 0.23], [361, 2, 4, 0.2], [6935, 2, 10, 1.3], [12721, 2, 8, 1.21], [8676, 2, 5, 0.85], [2049, 3, 15, 0.2], [417, 2, 5, 0.2], [3, 2, 4, 1.22], [8675, 2, 4, 0.73], [22247, 2, 5, 1.25], [6936, 2, 5, 0.47], [523, 2, 5, 0.41], [305, 2, 5, 0.73], [11838, 2, 4, 0.63], [8650, 2, 5, 0.94], [2328, 2, 5, 0.79], [2776, 2, 4, 0.94], [8648, 2, 4, 1.69], [2327, 2, 4, 0.2], [616, 2, 4, 0.46], [11739, 2, 4, 0.39], [11837, 2, 4, 0.63], [411, 2, 4, 0.64], [2805, 137, 5, 2.11], [6097, 80, 5, 2.11], [11835, 2, 4, 0.74], [6097, 29, 5, 1.16], [146, 2, 4, 1.42], [10993, 2, 4, 0.38], [326, 2, 4, 0.9], [583, 2, 4, 0.76], [10149, 3, 15, 0.75], [145, 2, 4, 0.91], [11836, 2, 4, 0.63], [144, 2, 4, 1.42], [308, 1, 6, 2.02], [75, 2, 4, 1.56], [10574, 3, 6, 0.85], [6494, 1, 4, 0.47], [2057, 3, 4, 0.8], [2055, 3, 4, 0.8], [2422, 29, 4, 0.72], [2054, 3, 5, 0.82], [6098, 80, 4, 0.58], [6098, 29, 4, 0.58], [1243, 2, 4, 1.92], [8915, 2, 5, 0.78], [1886, 2, 4, 0.44], [21793, 1, 4, 1.38], [12345, 1, 4, 1.58], [12349, 1, 4, 1.01], [1492, 1, 4, 0.83], [2859, 15, 4, 0.35], [247, 1, 4, 1.18], [3478, 2, 5, 1.0], [6158, 2, 5, 0.88], [335, 3, 10, 0.88], [201, 3, 4, 0.86], [5165, 1, 4, 0.86], [7084, 3, 4, 2.17], [5208, 3, 4, 0.47], [13928, 1, 4, 1.15], [336, 15, 4, 0.37], [3934, 5, 7, 1.36], [5812, 3, 5, 2.0], [12526, 2, 4, 0.46], [192, 3, 10, 1.24], [4253, 1, 4, 0.43], [94, 4, 4, 1.96], [1703, 2, 4, 2.16], [5811, 3, 6, 2.2], [9491, 21, 10, 1.29], [186, 3, 9, 0.67], [214, 3, 10, 1.49], [11490, 1, 4, 0.38], [2821, 3, 8, 2.17], [61, 3, 4, 0.2], [11767, 1, 4, 1.09], [5813, 3, 5, 2.0], [1050, 2, 4, 0.85], [1309, 1, 4, 0.92], [8938, 2, 4, 2.21], [24722, 2, 4, 0.39], [2991, 3, 4, 2.0], [2912, 1, 4, 0.38], [10398, 2, 4, 0.37], [13260, 29, 5, 1.26], [3495, 3, 13, 1.34], [11671, 1, 4, 1.99], [2438, 2, 5, 1.11], [11771, 1, 4, 2.12], [8599, 1, 4, 3.7], [229, 1, 4, 1.37], [11811, 1, 4, 0.38], [8944, 3, 4, 0.37], [8943, 3, 5, 0.38], [1049, 2, 4, 0.85], [12764, 2, 5, 0.43], [13928, 2, 4, 1.15], [7004, 1, 4, 0.6], [7036, 1, 4, 0.76], [955, 2, 4, 0.44], [11808, 1, 4, 1.13], [10124, 1, 4, 2.17], [5584, 3, 4, 1.16], [22573, 2, 4, 0.76], [3334, 5, 4, 2.28], [8897, 3, 4, 0.45], [9690, 1, 4, 0.69], [18964, 1, 4, 1.13], [6575, 3, 4, 0.71], [20927, 1, 4, 1.92], [1523, 1, 4, 2.32], [45, 2, 4, 1.79], [8274, 3, 4, 0.87], [2438, 1, 4, 1.21], [4001, 3, 8, 0.93], [1277, 1, 4, 1.3], [11886, 2, 4, 0.84], [9239, 29, 4, 1.55], [21269, 3, 4, 2.43], [13258, 29, 4, 1.12], [105, 3, 4, 0.43], [11678, 1, 4, 1.58], [1701, 2, 4, 0.67], [3477, 2, 4, 1.1], [10181, 26, 5, 0.46], [5165, 2, 5, 0.84], [7567, 3, 4, 0.41], [9209, 29, 4, 1.51], [3984, 3, 5, 0.62], [8635, 3, 4, 0.87], [8672, 2, 292, 4.91], [141, 2, 159, 3.65], [2778, 2, 158, 3.12], [362, 2, 144, 3.12], [361, 2, 166, 2.8], [6935, 2, 283, 6.0], [12721, 2, 291, 5.26], [8676, 2, 292, 4.13], [2049, 3, 364, 2.18], [417, 2, 166, 2.8], [3, 2, 123, 4.33], [8675, 2, 304, 3.12], [22247, 2, 291, 4.86], [6936, 2, 298, 3.21], [523, 2, 159, 3.55], [305, 2, 150, 3.92], [11838, 2, 265, 4.64], [8650, 2, 237, 4.75], [2328, 2, 153, 3.91], [2776, 2, 166, 3.64], [8648, 2, 237, 4.56], [2327, 2, 153, 4.01], [616, 2, 117, 2.21], [11739, 2, 61, 2.58], [11837, 2, 265, 4.64], [411, 2, 115, 2.79], [2805, 137, 180, 5.95], [6097, 80, 37, 6.0], [11835, 2, 265, 3.47], [6097, 29, 35, 3.8], [146, 2, 61, 3.73], [10993, 2, 57, 2.04], [326, 2, 94, 3.16], [583, 2, 96, 2.84], [10149, 3, 934, 4.54], [145, 2, 163, 3.06], [11836, 2, 265, 4.64], [144, 2, 61, 3.73], [308, 1, 175, 5.38], [75, 2, 152, 4.31], [6494, 1, 55, 2.21], [2057, 3, 501, 4.51], [2055, 3, 501, 4.03], [2422, 29, 39, 3.15], [2054, 3, 450, 4.0], [6098, 80, 80, 3.32], [6098, 29, 40, 3.32], [1243, 2, 100, 5.01], [8915, 2, 76, 2.76], [1886, 2, 167, 2.16], [21793, 1, 247, 4.35], [12345, 1, 632, 4.42], [12349, 1, 632, 4.44], [1492, 1, 39, 2.91], [2859, 15, 73, 2.71], [247, 1, 93, 5.03], [3478, 2, 79, 3.63], [6158, 2, 277, 3.44], [335, 3, 1375, 2.99], [201, 3, 315, 3.58], [5165, 1, 51, 2.97], [7084, 3, 133, 5.49], [5208, 3, 367, 4.38], [13928, 1, 50, 3.59], [3934, 5, 554, 4.02]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 7, 0.77], [305, 2, 4, 0.2], [8650, 2, 4, 0.46], [2778, 2, 5, 0.2], [8672, 2, 7, 2.86], [143, 2, 6, 2.15], [362, 2, 4, 0.23], [6936, 2, 5, 1.01], [145, 2, 4, 0.5], [11837, 2, 4, 0.84], [361, 2, 4, 0.38], [417, 2, 4, 0.38], [205, 2, 4, 0.56], [75, 2, 5, 0.97], [11681, 2, 5, 0.71], [1124, 2, 5, 0.57], [589, 2, 6, 0.2], [146, 2, 4, 0.57], [11737, 2, 4, 0.53], [8648, 2, 4, 1.1], [12721, 2, 6, 0.48], [523, 2, 4, 0.38], [8673, 2, 6, 0.2], [1504, 2, 5, 0.36], [8853, 2, 5, 1.67], [308, 1, 5, 1.23], [206, 2, 4, 0.82], [326, 2, 6, 0.85], [11835, 2, 6, 0.36], [990, 2, 4, 0.48], [8675, 2, 5, 1.2], [88, 10, 10, 0.19], [8915, 2, 6, 1.39], [144, 2, 5, 0.91], [1005, 2, 5, 0.89], [434, 2, 5, 0.3], [11739, 2, 4, 0.51], [142, 2, 4, 0.38], [8676, 2, 4, 2.16], [2424, 29, 4, 0.62], [9507, 3, 4, 0.35], [6158, 2, 7, 0.2], [7704, 2, 4, 1.25], [2423, 29, 4, 1.44], [11836, 2, 4, 0.84], [2424, 80, 4, 1.11], [7705, 2, 4, 1.9], [11738, 2, 4, 0.44], [1413, 15, 5, 0.2], [7706, 2, 4, 1.23], [2423, 80, 4, 1.04], [3478, 2, 4, 2.03], [7004, 1, 4, 1.56], [944, 15, 5, 0.2], [2859, 15, 4, 1.62], [2054, 3, 4, 1.98], [74, 1, 4, 1.34], [3429, 15, 4, 0.2], [10149, 3, 13, 1.01], [10993, 2, 4, 0.4], [2055, 3, 4, 1.98], [18964, 1, 4, 1.38], [12343, 1, 4, 4.0], [94, 4, 4, 2.21], [13928, 1, 4, 1.4], [13028, 3, 4, 0.49], [13034, 3, 6, 0.9], [2057, 3, 4, 1.98], [7084, 3, 4, 0.48], [11919, 1, 4, 0.34], [411, 2, 4, 1.26], [6097, 80, 4, 0.72], [11089, 1, 4, 0.91], [7886, 4, 5, 0.44], [3893, 1, 4, 1.77], [1050, 2, 4, 0.85], [7036, 1, 4, 0.43], [7707, 2, 4, 1.25], [563, 2, 4, 0.2], [3891, 1, 4, 1.61], [6494, 1, 4, 0.47], [6630, 3, 5, 1.8], [192, 3, 13, 1.26], [21793, 1, 4, 1.54], [1243, 2, 6, 0.95], [8274, 3, 5, 0.83], [7708, 2, 4, 1.5], [2912, 1, 4, 0.35], [13023, 3, 5, 0.44], [11581, 29, 4, 0.87], [3889, 1, 4, 1.57], [9126, 1, 4, 0.99], [159, 3, 5, 0.6], [13033, 3, 5, 0.8], [11490, 1, 4, 0.73], [5208, 3, 6, 1.85], [1049, 2, 4, 0.2], [12229, 2, 5, 0.45], [5940, 3, 4, 0.88], [3495, 3, 13, 1.34], [12349, 1, 4, 2.14], [22558, 3, 4, 0.88], [5165, 1, 4, 0.87], [2331, 1, 4, 1.18], [201, 3, 4, 0.86], [83, 2, 4, 1.0], [332, 2, 4, 0.49], [229, 1, 4, 1.04], [214, 3, 10, 1.25], [951, 4, 4, 1.81], [1309, 1, 4, 0.92], [6496, 1, 4, 1.31], [247, 1, 4, 1.21], [2805, 137, 5, 2.25], [5812, 3, 4, 1.01], [7885, 4, 4, 0.56], [21269, 3, 4, 4.0], [215, 4, 4, 1.56], [9690, 1, 5, 1.08], [942, 3, 4, 0.55], [8898, 3, 4, 1.65], [335, 3, 11, 0.62], [20555, 2, 4, 0.44], [11914, 1, 4, 0.86], [10406, 10, 9, 1.72], [1703, 2, 4, 2.12], [9827, 3, 4, 0.39], [4940, 1, 4, 0.2], [23961, 3, 4, 3.83], [8635, 3, 4, 0.57], [5811, 3, 5, 0.5], [24257, 1, 4, 1.42], [11770, 1, 4, 1.14], [9491, 21, 11, 1.36], [186, 3, 9, 1.23], [3934, 5, 7, 1.36], [6935, 2, 307, 3.37], [305, 2, 150, 3.42], [8650, 2, 250, 4.6], [2778, 2, 158, 3.29], [8672, 2, 288, 5.35], [143, 2, 60, 3.95], [362, 2, 151, 2.36], [6936, 2, 288, 6.0], [145, 2, 154, 3.71], [11837, 2, 264, 4.78], [361, 2, 165, 3.07], [417, 2, 165, 3.07], [205, 2, 115, 2.39], [75, 2, 148, 4.82], [11681, 2, 270, 3.74], [1124, 2, 199, 2.9], [589, 2, 156, 2.06], [146, 2, 154, 3.93], [11737, 2, 38, 2.96], [8648, 2, 237, 3.43], [12721, 2, 290, 4.86], [523, 2, 165, 2.52], [8673, 2, 291, 5.08], [1504, 2, 223, 2.79], [8853, 2, 288, 5.91], [308, 1, 68, 5.6], [206, 2, 86, 3.53], [326, 2, 94, 3.24], [11835, 2, 264, 3.22], [990, 2, 56, 2.23], [8675, 2, 298, 4.91], [88, 10, 576, 5.1], [8915, 2, 126, 3.92], [144, 2, 154, 3.88], [1005, 2, 28, 3.58], [434, 2, 108, 2.47], [11739, 2, 61, 2.29], [142, 2, 165, 3.07], [8676, 2, 298, 6.0], [2424, 29, 35, 3.65], [6158, 2, 267, 3.83], [7704, 2, 179, 5.09], [2423, 29, 37, 4.08], [11836, 2, 264, 3.89], [2424, 80, 172, 4.0], [11738, 2, 61, 2.16], [1413, 15, 26, 2.93], [7706, 2, 187, 3.68], [2423, 80, 188, 3.66], [3478, 2, 20, 4.66], [7004, 1, 82, 4.31], [944, 15, 45, 2.59], [2054, 3, 495, 5.12], [74, 1, 199, 3.89], [3429, 15, 28, 2.0], [10149, 3, 934, 3.1], [10993, 2, 54, 2.68], [2055, 3, 495, 5.19], [18964, 1, 18, 3.41], [12343, 1, 638, 6.0], [94, 4, 123, 5.56], [13928, 1, 48, 4.01], [13028, 3, 154, 2.55], [13034, 3, 599, 4.8]]</t>
-  </si>
-  <si>
-    <t>[[589, 2, 5, 0.2], [141, 2, 4, 0.2], [2327, 2, 5, 0.39], [2778, 2, 4, 0.2], [6936, 2, 6, 0.44], [362, 2, 4, 0.31], [326, 2, 4, 0.4], [305, 2, 4, 1.26], [205, 2, 4, 0.47], [2775, 2, 4, 0.2], [1446, 2, 4, 1.79], [8649, 2, 5, 0.64], [8853, 2, 5, 0.71], [593, 2, 6, 0.2], [206, 2, 4, 1.44], [3840, 1, 4, 0.4], [11581, 29, 4, 0.81], [1429, 2, 4, 1.84], [523, 2, 5, 0.54], [21793, 1, 5, 0.61], [413, 1, 5, 0.81], [412, 1, 4, 1.55], [5165, 1, 4, 1.2], [1124, 2, 5, 0.79], [159, 3, 5, 0.44], [7036, 1, 5, 1.53], [615, 2, 4, 0.42], [201, 3, 6, 0.41], [8089, 1, 4, 0.36], [248, 1, 4, 0.23], [145, 2, 4, 1.42], [6952, 1, 4, 1.04], [345, 3, 6, 0.51], [6097, 80, 5, 2.38], [146, 2, 4, 0.78], [10993, 2, 5, 0.48], [2050, 3, 5, 1.22], [24664, 2, 17, 0.75], [144, 2, 5, 0.86], [2055, 3, 4, 0.41], [7005, 1, 4, 0.82], [2912, 1, 4, 1.2], [11770, 1, 4, 1.02], [3891, 1, 4, 0.42], [2057, 3, 4, 0.46], [432, 3, 4, 1.65], [997, 2, 5, 0.2], [998, 2, 5, 0.2], [6158, 2, 4, 0.36], [3893, 1, 4, 0.49], [6097, 29, 4, 2.41], [5165, 2, 7, 0.91], [12870, 1, 4, 1.19], [2424, 80, 4, 1.76], [10149, 3, 17, 1.01], [11772, 1, 4, 1.12], [6098, 80, 4, 1.39], [20927, 1, 4, 1.11], [9372, 1, 4, 0.98], [7885, 4, 4, 0.74], [11089, 1, 4, 0.57], [10574, 3, 6, 0.57], [5208, 3, 5, 0.94], [1492, 1, 5, 0.2], [3334, 5, 4, 1.14], [4032, 29, 5, 0.8], [346, 3, 4, 0.92], [11671, 1, 4, 2.02], [22316, 3, 4, 0.5], [13028, 3, 5, 1.11], [1519, 3, 15, 0.22], [3576, 25, 5, 1.76], [1490, 1, 4, 0.72], [12304, 1, 4, 1.84], [3889, 1, 4, 1.16], [2912, 2, 5, 1.2], [11583, 29, 4, 0.24], [13034, 3, 6, 1.27], [972, 3, 5, 1.01], [214, 3, 9, 0.64], [5151, 2, 4, 0.45], [229, 1, 4, 2.45], [11426, 25, 4, 1.3], [161, 3, 6, 1.45], [346, 1, 4, 1.18], [2331, 1, 4, 1.04], [5812, 3, 6, 2.01], [11490, 1, 4, 0.57], [8677, 3, 5, 0.5], [9289, 29, 4, 1.27], [1701, 2, 4, 1.53], [13893, 2, 4, 1.34], [75, 2, 5, 0.67], [10, 2, 4, 0.2], [1309, 1, 4, 0.41], [2805, 137, 4, 1.58], [3575, 25, 4, 1.11], [2160, 68, 4, 1.02], [11404, 2, 4, 0.45], [12764, 2, 6, 0.2], [13023, 3, 5, 1.51], [159, 1, 4, 0.45], [4253, 1, 4, 0.71], [5209, 3, 4, 0.89], [9069, 1, 4, 0.88], [957, 2, 5, 0.91], [6494, 1, 4, 0.46], [2438, 2, 5, 1.37], [9971, 2, 4, 0.69], [11813, 1, 4, 1.85], [14037, 3, 4, 1.22], [192, 3, 8, 1.79], [9967, 2, 4, 0.69], [4033, 29, 4, 1.6], [9491, 21, 9, 1.36], [159, 16, 4, 0.47], [24257, 1, 4, 1.47], [8943, 3, 5, 0.2], [2878, 1, 4, 1.43], [11150, 2, 5, 0.45], [5584, 3, 4, 0.8], [9964, 2, 4, 1.15], [105, 3, 4, 1.08], [22317, 3, 5, 0.2], [8283, 2, 5, 1.11], [10609, 1, 4, 0.48], [9965, 2, 4, 0.69], [10407, 10, 7, 2.02], [4076, 3, 4, 1.75], [4586, 10, 13, 0.8], [3495, 3, 9, 1.44], [335, 3, 12, 0.84], [14041, 3, 4, 0.49], [24258, 1, 4, 0.81], [7324, 1, 4, 0.56], [9910, 25, 4, 0.37], [7567, 3, 4, 1.06], [589, 2, 73, 2.68], [141, 2, 174, 3.26], [2327, 2, 153, 3.55], [2778, 2, 175, 2.68], [6936, 2, 280, 6.0], [362, 2, 142, 3.7], [326, 2, 110, 2.49], [305, 2, 175, 3.66], [205, 2, 117, 2.13], [2775, 2, 175, 2.68], [1446, 2, 36, 4.13], [8649, 2, 235, 4.05], [8853, 2, 329, 3.26], [593, 2, 243, 2.78], [3840, 1, 81, 1.8], [11581, 29, 74, 2.79], [1429, 2, 36, 4.38], [523, 2, 174, 3.66], [21793, 1, 268, 4.57], [413, 1, 92, 3.04], [412, 1, 98, 4.21], [5165, 1, 48, 4.02], [1124, 2, 197, 3.92], [159, 3, 424, 1.88], [7036, 1, 129, 4.43], [615, 2, 130, 2.04], [201, 3, 202, 4.66], [8089, 1, 82, 3.1], [248, 1, 26, 2.05], [6952, 1, 212, 5.71], [345, 3, 302, 4.35], [6097, 80, 69, 6.0], [146, 2, 181, 2.73], [24664, 2, 336, 2.94], [144, 2, 154, 2.95], [7005, 1, 85, 2.81], [2912, 1, 56, 3.59], [11770, 1, 244, 4.39], [3891, 1, 146, 2.49], [2057, 3, 172, 1.79], [432, 3, 320, 4.42], [997, 2, 259, 3.14], [998, 2, 245, 4.57], [6158, 2, 310, 1.92], [3893, 1, 125, 2.77], [5165, 2, 405, 2.95], [12870, 1, 155, 3.52], [2424, 80, 179, 4.62], [10149, 3, 884, 2.96], [11772, 1, 238, 5.34], [6098, 80, 54, 5.34], [20927, 1, 75, 3.34], [9372, 1, 273, 3.13], [11089, 1, 180, 3.24], [10574, 3, 548, 2.95], [5208, 3, 328, 3.92], [1492, 1, 13, 2.46], [3334, 5, 191, 4.14], [4032, 29, 97, 3.06], [11671, 1, 337, 5.19], [22316, 3, 378, 2.18], [13028, 3, 36, 4.99], [1519, 3, 965, 2.5]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 8, 0.97], [305, 2, 5, 0.75], [6935, 2, 8, 1.19], [141, 2, 5, 0.39], [2049, 3, 15, 0.2], [12721, 2, 6, 0.97], [205, 2, 4, 0.2], [130, 1, 4, 0.51], [589, 2, 8, 0.2], [151, 1, 4, 0.4], [1776, 1, 4, 0.46], [362, 2, 5, 1.07], [146, 2, 4, 0.58], [145, 2, 4, 0.39], [593, 2, 6, 0.59], [8915, 2, 6, 0.2], [2328, 2, 5, 0.3], [1777, 1, 5, 0.68], [6936, 2, 6, 0.92], [3, 2, 4, 1.01], [22247, 2, 5, 0.95], [8675, 2, 6, 0.72], [248, 1, 4, 0.37], [1007, 2, 7, 0.2], [2778, 2, 5, 0.2], [88, 10, 10, 0.44], [10, 2, 6, 0.2], [8677, 3, 6, 1.81], [412, 1, 4, 0.91], [10149, 3, 17, 1.32], [2054, 3, 7, 0.59], [11681, 2, 5, 1.12], [10825, 21, 9, 1.14], [13028, 3, 5, 0.5], [361, 2, 4, 0.65], [413, 1, 4, 1.45], [7004, 1, 4, 0.4], [2055, 3, 5, 0.79], [2057, 3, 5, 0.79], [8676, 2, 4, 0.97], [411, 2, 4, 0.74], [410, 1, 4, 0.61], [308, 1, 5, 0.72], [61, 3, 4, 0.71], [6158, 2, 6, 0.65], [432, 3, 5, 0.39], [1124, 2, 6, 0.2], [45, 2, 4, 1.37], [7005, 1, 4, 0.4], [5081, 2, 8, 0.2], [94, 4, 5, 2.4], [167, 3, 5, 1.1], [9827, 3, 4, 0.2], [5812, 3, 6, 2.26], [3495, 3, 17, 1.31], [168, 3, 6, 0.29], [3893, 1, 4, 0.28], [12870, 1, 4, 2.58], [3889, 1, 4, 0.28], [10574, 3, 5, 1.69], [3891, 1, 4, 0.28], [8651, 2, 4, 1.45], [335, 3, 13, 1.1], [6097, 80, 4, 2.61], [95, 3, 17, 0.32], [20256, 2, 4, 0.48], [6098, 29, 4, 1.77], [11737, 2, 4, 0.97], [1490, 1, 4, 0.93], [214, 3, 9, 0.44], [346, 1, 5, 0.56], [998, 2, 4, 1.52], [20927, 1, 5, 0.61], [9069, 1, 5, 0.84], [20498, 1, 5, 0.55], [1622, 1, 5, 0.88], [8898, 3, 6, 2.42], [6098, 80, 4, 2.48], [9760, 29, 4, 0.24], [1070, 7, 8, 0.66], [14017, 3, 5, 0.2], [9829, 3, 4, 1.06], [997, 2, 4, 1.04], [13260, 29, 4, 0.85], [22554, 10, 11, 0.23], [13034, 3, 9, 1.01], [1243, 2, 4, 0.79], [20498, 3, 6, 0.6], [346, 3, 5, 0.52], [345, 3, 4, 0.58], [336, 15, 4, 0.35], [5513, 2, 4, 0.57], [22317, 3, 8, 0.26], [996, 2, 4, 1.39], [5946, 1, 4, 0.28], [5811, 3, 4, 2.01], [5813, 3, 5, 1.31], [9691, 1, 5, 1.91], [5086, 1, 8, 2.44], [8945, 3, 5, 0.84], [995, 2, 4, 1.56], [952, 4, 5, 2.48], [11085, 2, 5, 0.45], [1080, 3, 4, 0.38], [1413, 15, 4, 0.2], [8557, 3, 4, 0.2], [3049, 3, 6, 1.73], [20486, 3, 8, 2.5], [9082, 3, 14, 0.83], [2424, 80, 4, 1.76], [4076, 3, 4, 2.94], [1703, 2, 6, 1.38], [215, 4, 5, 3.57], [9081, 3, 8, 0.54], [823, 1, 4, 0.48], [20486, 1, 4, 0.51], [8274, 3, 4, 0.53], [8943, 3, 5, 0.37], [13023, 3, 5, 1.48], [2854, 21, 13, 0.44], [11510, 3, 5, 0.46], [23611, 3, 4, 0.42], [470, 1, 4, 0.37], [14018, 3, 4, 0.42], [6497, 1, 5, 1.25], [8104, 1, 5, 0.2], [3047, 3, 5, 1.0], [18, 1, 4, 0.38], [2878, 1, 4, 1.57], [1414, 15, 4, 0.2], [20969, 3, 5, 1.12], [12923, 1, 4, 0.25], [10529, 29, 5, 0.48], [18964, 1, 4, 0.9], [13484, 1, 4, 1.93], [10780, 10, 4, 2.28], [8672, 2, 253, 5.32], [305, 2, 131, 3.89], [6935, 2, 283, 5.53], [141, 2, 137, 3.31], [2049, 3, 486, 2.4], [12721, 2, 267, 2.73], [205, 2, 97, 2.73], [130, 1, 31, 2.02], [589, 2, 145, 1.48], [151, 1, 46, 1.94], [1776, 1, 113, 2.89], [362, 2, 126, 3.69], [146, 2, 152, 3.07], [145, 2, 144, 1.86], [593, 2, 223, 3.12], [8915, 2, 180, 1.88], [2328, 2, 150, 3.41], [1777, 1, 107, 3.88], [6936, 2, 283, 4.87], [3, 2, 124, 3.17], [22247, 2, 267, 3.3], [8675, 2, 295, 3.11], [1007, 2, 240, 1.94], [2778, 2, 154, 3.46], [88, 10, 529, 2.92], [10, 2, 99, 2.98], [8677, 3, 261, 5.48], [412, 1, 74, 4.07], [10149, 3, 768, 5.65], [2054, 3, 417, 4.52], [11681, 2, 277, 3.87], [10825, 21, 608, 2.95], [13028, 3, 131, 3.33], [361, 2, 137, 2.45], [413, 1, 77, 3.74], [7004, 1, 71, 3.05], [2055, 3, 440, 2.87], [2057, 3, 440, 4.67], [8676, 2, 267, 2.88], [411, 2, 97, 3.17], [410, 1, 103, 2.95], [308, 1, 150, 3.59], [61, 3, 219, 3.1], [6158, 2, 243, 3.8], [432, 3, 268, 3.19], [1124, 2, 166, 2.14], [45, 2, 98, 6.0], [7005, 1, 71, 3.05], [5081, 2, 171, 3.4], [94, 4, 106, 4.95], [167, 3, 213, 3.88], [9827, 3, 78, 3.28], [3495, 3, 855, 4.69], [168, 3, 360, 3.87], [3893, 1, 109, 2.17], [3889, 1, 109, 2.17], [10574, 3, 519, 4.8], [3891, 1, 109, 2.17], [8651, 2, 228, 3.74], [6097, 80, 36, 5.79], [95, 3, 932, 3.36], [20256, 2, 98, 2.06], [11737, 2, 51, 2.82], [1490, 1, 52, 2.74]]</t>
-  </si>
-  <si>
-    <t>[[305, 2, 7, 1.32], [8672, 2, 10, 2.68], [3, 2, 9, 2.42], [589, 2, 11, 0.8], [6935, 2, 22, 2.89], [2049, 3, 22, 1.93], [130, 1, 9, 1.68], [205, 2, 7, 0.96], [12721, 2, 10, 1.78], [144, 2, 7, 1.42], [75, 2, 9, 1.86], [145, 2, 7, 1.0], [1776, 1, 7, 1.17], [8915, 2, 12, 0.5], [593, 2, 12, 2.08], [151, 1, 7, 0.71], [2778, 2, 13, 1.07], [1777, 1, 7, 1.85], [8648, 2, 17, 5.0], [6936, 2, 12, 2.57], [2328, 2, 9, 1.55], [5151, 2, 7, 1.15], [147, 1, 7, 2.38], [88, 10, 21, 1.98], [141, 2, 7, 2.52], [83, 2, 7, 0.85], [74, 1, 7, 3.53], [2054, 3, 7, 1.03], [10825, 21, 13, 2.02], [362, 2, 7, 2.15], [1007, 2, 9, 0.73], [2057, 3, 7, 0.89], [345, 3, 11, 0.97], [2055, 3, 7, 0.81], [432, 3, 7, 1.15], [7005, 1, 7, 0.73], [21793, 1, 7, 4.02], [22247, 2, 13, 2.72], [57, 1, 9, 1.09], [410, 1, 7, 2.89], [3889, 1, 7, 0.8], [201, 3, 11, 0.87], [308, 1, 7, 2.55], [11234, 2, 8, 2.46], [12870, 1, 14, 5.0], [10149, 3, 21, 1.67], [7036, 1, 7, 2.49], [1124, 2, 14, 0.68], [35, 1, 7, 3.4], [9827, 3, 7, 1.6], [167, 3, 9, 2.77], [5081, 2, 11, 1.33], [94, 4, 7, 3.02], [8677, 3, 9, 1.26], [1654, 2, 7, 0.92], [411, 2, 7, 1.12], [1504, 2, 7, 2.22], [3891, 1, 7, 2.38], [79, 1, 7, 0.94], [8676, 2, 7, 1.7], [3893, 1, 7, 2.63], [168, 3, 11, 3.72], [2336, 3, 9, 1.96], [5812, 3, 8, 1.92], [9760, 29, 7, 0.92], [23, 1, 7, 2.91], [1490, 1, 7, 0.92], [412, 1, 7, 2.68], [6158, 2, 10, 1.12], [20927, 1, 7, 2.73], [45, 2, 7, 2.72], [1767, 25, 7, 1.14], [361, 2, 7, 2.52], [5208, 3, 13, 3.29], [8651, 2, 7, 3.23], [335, 3, 20, 0.92], [95, 3, 27, 0.67], [9069, 1, 7, 1.46], [25, 1, 7, 2.91], [346, 1, 7, 2.76], [1622, 1, 7, 3.2], [214, 3, 18, 0.7], [8674, 2, 7, 1.7], [2049, 1, 7, 1.19], [21269, 3, 7, 3.21], [413, 1, 7, 2.42], [998, 2, 7, 2.35], [34, 1, 7, 3.56], [3495, 3, 17, 2.26], [856, 1, 9, 0.68], [8898, 3, 9, 2.78], [1070, 7, 15, 0.84], [11116, 1, 7, 3.42], [1766, 25, 7, 3.12], [9691, 1, 7, 3.89], [20498, 1, 7, 2.72], [346, 3, 7, 1.82], [5946, 1, 7, 2.23], [38, 1, 7, 3.56], [9829, 3, 7, 2.25], [14017, 3, 7, 1.75], [974, 3, 9, 2.39], [1091, 1, 7, 1.75], [152, 21, 7, 1.5], [20498, 3, 10, 1.9], [39, 1, 7, 3.56], [82, 2, 7, 2.52], [9372, 1, 7, 3.6], [1080, 3, 9, 1.34], [14037, 3, 9, 1.09], [5086, 1, 7, 4.7], [996, 2, 7, 4.7], [1767, 2, 7, 1.71], [5209, 3, 7, 3.29], [192, 3, 20, 4.76], [5811, 3, 7, 3.8], [3048, 3, 7, 3.93], [9828, 3, 7, 2.93], [972, 3, 10, 2.0], [24, 1, 7, 2.21], [13260, 29, 7, 2.71], [10780, 10, 7, 3.58], [5513, 2, 9, 1.86], [5813, 3, 7, 3.55], [4203, 1, 9, 1.06], [952, 4, 7, 4.41], [202, 2, 7, 3.38], [3981, 3, 17, 2.74], [8945, 3, 8, 2.64], [13034, 3, 8, 2.63], [36, 1, 7, 3.56], [2878, 1, 7, 1.97], [336, 15, 7, 0.67], [3900, 3, 7, 0.94], [955, 2, 7, 0.69], [9082, 3, 29, 2.75], [1490, 1, 61, 1.99], [412, 1, 84, 4.61], [6158, 2, 266, 3.41], [20927, 1, 81, 3.8], [45, 2, 108, 4.78], [1767, 25, 194, 3.42], [361, 2, 156, 3.59], [5208, 3, 655, 4.36], [8651, 2, 260, 4.3], [335, 3, 1322, 2.77], [95, 3, 1101, 3.56], [9069, 1, 137, 2.7], [25, 1, 132, 3.98], [1622, 1, 123, 4.27], [214, 3, 661, 1.95], [8674, 2, 306, 2.77], [21269, 3, 344, 4.28], [413, 1, 87, 4.11], [998, 2, 256, 3.42], [34, 1, 113, 4.63], [3495, 3, 975, 4.43], [856, 1, 37, 1.75], [8898, 3, 285, 5.33], [1070, 7, 595, 3.4], [11116, 1, 27, 4.05], [1766, 25, 189, 4.19], [9691, 1, 76, 4.96], [20498, 1, 99, 4.36], [346, 3, 693, 3.06], [5946, 1, 125, 4.03], [38, 1, 113, 4.63], [9829, 3, 80, 3.32], [14017, 3, 225, 3.39], [974, 3, 150, 4.2], [1091, 1, 40, 2.75], [20498, 3, 589, 3.94], [39, 1, 113, 4.63], [9372, 1, 231, 5.4], [1080, 3, 134, 3.64], [5086, 1, 213, 5.77], [996, 2, 256, 5.77], [1767, 2, 35, 3.19], [5209, 3, 655, 4.36], [192, 3, 1567, 5.84], [5811, 3, 201, 4.69], [3048, 3, 273, 5.73], [9828, 3, 89, 4.0], [972, 3, 601, 3.68], [24, 1, 114, 3.64], [13260, 29, 81, 3.78], [10780, 10, 434, 5.64], [4203, 1, 50, 3.11], [952, 4, 77, 5.48], [202, 2, 73, 4.42], [3981, 3, 1716, 3.78], [8945, 3, 498, 3.64], [13034, 3, 598, 4.22], [36, 1, 129, 4.63], [2878, 1, 95, 3.04], [3900, 3, 47, 2.01], [955, 2, 128, 1.76], [9082, 3, 2905, 3.83]]</t>
-  </si>
-  <si>
-    <t>[[305, 2, 9, 1.32], [589, 2, 10, 1.45], [6935, 2, 11, 4.09], [2778, 2, 14, 1.18], [144, 2, 7, 1.04], [8915, 2, 10, 1.06], [2328, 2, 14, 1.39], [6936, 2, 7, 3.27], [8648, 2, 14, 3.54], [205, 2, 7, 1.6], [8650, 2, 7, 3.13], [593, 2, 14, 2.27], [145, 2, 7, 1.67], [146, 2, 7, 1.4], [326, 2, 7, 1.02], [7036, 1, 9, 3.79], [88, 10, 29, 2.1], [2776, 2, 9, 2.0], [141, 2, 7, 0.72], [7004, 1, 7, 2.1], [1446, 2, 7, 1.5], [1124, 2, 7, 1.59], [206, 2, 7, 1.83], [142, 2, 9, 2.28], [2912, 1, 7, 3.71], [11685, 2, 9, 1.76], [10993, 2, 9, 1.0], [7886, 4, 7, 0.8], [5165, 1, 7, 2.62], [12870, 1, 11, 4.07], [3893, 1, 7, 0.71], [2055, 3, 7, 1.06], [1622, 1, 7, 1.38], [417, 2, 7, 2.02], [21793, 1, 7, 1.7], [2054, 3, 7, 3.41], [3889, 1, 7, 1.13], [7573, 1, 14, 5.0], [523, 2, 7, 1.19], [7885, 4, 9, 1.19], [61, 3, 9, 2.43], [9372, 1, 7, 3.88], [10, 2, 9, 1.14], [3891, 1, 7, 1.21], [10149, 3, 21, 2.82], [5208, 3, 14, 0.79], [75, 2, 7, 3.31], [9491, 21, 29, 0.95], [20927, 1, 7, 2.86], [997, 2, 7, 4.68], [12721, 2, 10, 3.06], [35, 1, 9, 3.23], [3, 2, 9, 1.84], [5165, 2, 8, 2.19], [11234, 2, 7, 2.7], [33, 1, 7, 3.17], [998, 2, 7, 3.08], [94, 4, 7, 3.76], [22247, 2, 7, 2.77], [972, 3, 10, 2.36], [5076, 1, 9, 2.68], [6158, 2, 11, 1.56], [34, 1, 7, 3.25], [2805, 137, 9, 4.69], [2912, 2, 12, 3.56], [2424, 80, 7, 2.78], [38, 1, 7, 3.3], [8104, 1, 7, 3.87], [8898, 3, 7, 5.0], [12212, 29, 11, 0.9], [39, 1, 7, 3.27], [13928, 1, 7, 2.54], [11952, 1, 7, 1.52], [1414, 15, 7, 0.75], [24257, 1, 7, 1.25], [7567, 3, 7, 3.04], [2424, 29, 7, 2.71], [3495, 3, 18, 3.02], [9691, 1, 7, 2.83], [11770, 1, 7, 4.09], [192, 3, 15, 2.09], [3048, 3, 7, 1.77], [11490, 1, 7, 1.37], [995, 2, 7, 4.0], [5946, 1, 7, 1.9], [23961, 3, 7, 3.68], [411, 2, 7, 2.12], [11772, 1, 7, 3.6], [632, 11, 21, 1.29], [161, 3, 9, 4.12], [1703, 2, 7, 2.81], [10407, 10, 12, 3.01], [74, 1, 7, 4.99], [13023, 3, 7, 2.91], [1523, 1, 7, 1.08], [4253, 1, 7, 0.75], [5164, 1, 7, 1.99], [2331, 1, 7, 3.16], [1519, 3, 20, 0.83], [21269, 3, 7, 3.95], [1274, 1, 7, 1.55], [10410, 10, 16, 2.97], [3430, 15, 7, 2.93], [12764, 2, 8, 1.03], [1492, 1, 7, 1.14], [972, 1, 7, 2.36], [11236, 2, 7, 1.19], [214, 3, 26, 1.0], [24258, 1, 7, 2.51], [6097, 29, 7, 2.5], [6097, 80, 7, 2.91], [1080, 3, 7, 2.78], [13893, 2, 7, 2.25], [10780, 10, 7, 4.08], [3047, 3, 7, 3.16], [8674, 2, 7, 4.14], [9081, 3, 12, 3.28], [13928, 2, 7, 2.54], [3576, 29, 7, 3.21], [10408, 10, 10, 2.9], [12662, 1, 7, 1.44], [1243, 2, 7, 0.79], [13034, 3, 7, 2.36], [13264, 29, 7, 0.9], [2436, 4, 7, 3.38], [45, 2, 7, 2.25], [2438, 2, 8, 2.33], [11813, 1, 7, 1.66], [3334, 5, 7, 2.7], [7704, 2, 7, 1.67], [20486, 3, 7, 2.91], [1277, 1, 7, 3.27], [11812, 1, 7, 0.92], [8659, 1, 7, 1.64], [10936, 2, 7, 3.04], [8104, 1, 222, 5.07], [8898, 3, 295, 6.0], [12212, 29, 132, 3.28], [39, 1, 127, 4.47], [13928, 1, 54, 3.74], [11952, 1, 207, 2.72], [1414, 15, 114, 1.95], [24257, 1, 139, 2.45], [7567, 3, 69, 4.46], [2424, 29, 34, 3.91], [3495, 3, 951, 4.23], [9691, 1, 79, 4.03], [11770, 1, 219, 5.29], [192, 3, 1454, 3.29], [3048, 3, 282, 2.97], [11490, 1, 118, 2.82], [995, 2, 272, 5.2], [5946, 1, 144, 3.1], [23961, 3, 340, 4.88], [411, 2, 107, 3.32], [11772, 1, 233, 4.79], [632, 11, 855, 2.49], [161, 3, 754, 5.32], [1703, 2, 162, 4.01], [74, 1, 213, 6.0], [13023, 3, 683, 4.12], [1523, 1, 54, 2.28], [4253, 1, 199, 1.95], [5164, 1, 54, 3.19], [2331, 1, 121, 4.36], [1519, 3, 566, 1.72], [21269, 3, 318, 5.16], [1274, 1, 81, 2.75], [12764, 2, 855, 2.24], [1492, 1, 43, 2.34], [972, 1, 114, 3.57], [11236, 2, 255, 2.39], [214, 3, 604, 2.18], [6097, 29, 35, 3.7], [6097, 80, 69, 4.11], [1080, 3, 125, 4.12], [13893, 2, 316, 3.45], [10780, 10, 416, 5.57], [3047, 3, 265, 4.84], [8674, 2, 291, 5.34], [9081, 3, 535, 4.47], [13928, 2, 27, 3.74], [3576, 29, 8, 3.88], [12662, 1, 71, 2.64], [1243, 2, 111, 1.99], [13034, 3, 680, 3.56], [13264, 29, 85, 2.1], [2436, 4, 128, 4.59], [45, 2, 122, 3.45], [2438, 2, 727, 3.53], [11813, 1, 326, 2.86], [3334, 5, 191, 3.9], [7704, 2, 202, 2.87], [20486, 3, 683, 4.12], [1277, 1, 222, 4.47], [11812, 1, 277, 2.13], [8659, 1, 139, 2.84], [10936, 2, 153, 4.24]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 10, 2.95], [326, 2, 7, 1.37], [144, 2, 7, 2.25], [11685, 2, 7, 3.6], [11681, 2, 9, 3.34], [589, 2, 8, 0.61], [205, 2, 7, 0.74], [141, 2, 11, 1.6], [593, 2, 14, 1.01], [305, 2, 7, 1.23], [8915, 2, 8, 0.93], [8650, 2, 7, 2.25], [143, 2, 7, 2.02], [2328, 2, 7, 0.81], [6936, 2, 14, 4.75], [2778, 2, 9, 1.68], [206, 2, 7, 1.57], [146, 2, 9, 1.81], [88, 10, 18, 2.29], [7004, 1, 7, 2.64], [9507, 3, 7, 0.69], [7036, 1, 7, 3.33], [145, 2, 7, 1.75], [1446, 2, 9, 1.73], [417, 2, 7, 0.93], [8853, 2, 7, 2.37], [2055, 3, 7, 4.17], [10993, 2, 7, 0.98], [523, 2, 7, 1.81], [11737, 2, 7, 1.89], [75, 2, 7, 2.14], [2050, 3, 7, 4.18], [12870, 1, 7, 3.81], [3840, 1, 7, 0.77], [3893, 1, 7, 0.83], [12350, 1, 7, 3.92], [2057, 3, 7, 3.77], [13028, 3, 7, 1.25], [2054, 3, 7, 4.18], [7084, 3, 7, 2.03], [3889, 1, 7, 1.75], [2991, 3, 7, 3.39], [20927, 1, 7, 2.14], [3, 2, 7, 1.0], [7005, 1, 7, 1.54], [997, 2, 7, 1.75], [94, 4, 7, 4.1], [10, 2, 7, 0.69], [21793, 1, 7, 3.05], [7885, 4, 9, 1.28], [996, 2, 7, 3.03], [3891, 1, 7, 0.87], [5165, 1, 7, 2.12], [998, 2, 7, 3.03], [6158, 2, 7, 4.2], [8672, 2, 7, 2.68], [9491, 21, 20, 1.19], [11739, 2, 7, 3.41], [5165, 2, 8, 2.12], [2912, 1, 7, 3.97], [972, 3, 8, 3.84], [956, 2, 7, 0.67], [413, 1, 7, 1.67], [98, 11, 16, 2.1], [346, 3, 7, 0.86], [10388, 2, 7, 1.16], [411, 2, 7, 2.21], [346, 1, 7, 0.83], [1492, 1, 7, 0.92], [83, 2, 9, 1.41], [7573, 1, 7, 4.14], [8677, 3, 7, 3.84], [7567, 3, 7, 2.83], [5208, 3, 8, 3.29], [410, 1, 7, 2.57], [22316, 3, 7, 1.23], [9372, 1, 7, 4.15], [995, 2, 7, 3.03], [13928, 1, 7, 2.6], [9081, 3, 12, 3.66], [22247, 2, 7, 2.11], [336, 15, 7, 2.25], [308, 1, 7, 3.42], [161, 3, 8, 4.99], [2912, 2, 8, 3.96], [10631, 2, 7, 2.95], [1622, 1, 7, 2.9], [11953, 1, 7, 1.06], [22317, 3, 7, 1.67], [345, 3, 7, 1.46], [23611, 3, 9, 2.98], [9082, 3, 33, 2.42], [229, 1, 7, 4.1], [6497, 1, 7, 3.08], [192, 3, 20, 1.83], [37, 1, 7, 2.48], [24257, 1, 7, 4.57], [972, 1, 7, 3.34], [11767, 1, 7, 0.83], [12271, 2, 7, 4.85], [10410, 10, 10, 2.97], [82, 2, 7, 1.27], [14037, 3, 7, 4.04], [10407, 10, 10, 3.01], [7704, 2, 7, 2.79], [34, 1, 7, 2.04], [74, 1, 7, 3.1], [3048, 3, 7, 2.19], [1413, 15, 7, 0.69], [20498, 3, 8, 0.7], [38, 1, 7, 1.52], [335, 3, 15, 1.63], [2331, 1, 7, 2.96], [12338, 29, 7, 0.94], [215, 4, 7, 4.81], [12721, 2, 7, 1.73], [152, 21, 7, 2.0], [9, 1, 7, 1.12], [9964, 2, 7, 4.59], [1523, 1, 7, 0.85], [4253, 1, 7, 1.29], [11510, 3, 8, 1.74], [45, 2, 7, 4.04], [8673, 2, 7, 4.12], [12764, 2, 10, 1.18], [10093, 3, 15, 1.68], [5209, 3, 7, 3.29], [7705, 2, 7, 2.79], [1703, 2, 7, 3.77], [2805, 137, 8, 2.05], [7706, 2, 7, 4.27], [3047, 3, 7, 3.13], [12212, 29, 7, 1.19], [1895, 3, 7, 4.81], [9971, 2, 7, 1.35], [346, 1, 166, 1.96], [1492, 1, 40, 2.05], [83, 2, 19, 2.46], [7573, 1, 376, 5.27], [8677, 3, 312, 4.97], [7567, 3, 64, 3.99], [5208, 3, 531, 4.39], [22316, 3, 291, 3.17], [9372, 1, 248, 5.27], [995, 2, 257, 4.15], [13928, 1, 45, 3.73], [9081, 3, 497, 4.78], [22247, 2, 306, 3.24], [336, 15, 112, 3.38], [308, 1, 171, 4.55], [161, 3, 657, 6.0], [2912, 2, 388, 5.09], [10631, 2, 220, 4.08], [1622, 1, 113, 4.02], [11953, 1, 196, 2.19], [22317, 3, 291, 3.63], [345, 3, 274, 3.17], [23611, 3, 351, 4.11], [9082, 3, 2380, 3.58], [229, 1, 88, 5.23], [6497, 1, 39, 4.21], [192, 3, 1377, 2.94], [37, 1, 103, 3.61], [24257, 1, 126, 5.7], [972, 1, 96, 4.47], [11767, 1, 150, 2.12], [12271, 2, 67, 5.97], [82, 2, 61, 2.4], [14037, 3, 353, 5.17], [7704, 2, 172, 3.92], [34, 1, 103, 3.24], [74, 1, 198, 4.23], [3048, 3, 250, 3.31], [1413, 15, 100, 1.82], [20498, 3, 633, 1.83], [38, 1, 108, 2.64], [335, 3, 1398, 2.77], [2331, 1, 122, 4.09], [12338, 29, 49, 2.07], [215, 4, 40, 5.94], [12721, 2, 306, 2.85], [9, 1, 8, 1.93], [9964, 2, 285, 5.72], [1523, 1, 51, 1.98], [4253, 1, 169, 2.42], [11510, 3, 630, 2.87], [45, 2, 114, 5.17], [8673, 2, 302, 5.25], [12764, 2, 719, 2.49], [10093, 3, 889, 2.8], [5209, 3, 531, 4.39], [7705, 2, 172, 3.92], [1703, 2, 159, 4.89], [2805, 137, 184, 3.18], [7706, 2, 172, 5.4], [3047, 3, 289, 4.25], [12212, 29, 117, 2.32], [1895, 3, 318, 5.94], [9971, 2, 285, 2.48]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 28, 3.05], [362, 2, 9, 1.63], [2049, 3, 20, 0.56], [589, 2, 15, 0.55], [3, 2, 7, 2.22], [75, 2, 14, 1.74], [1776, 1, 7, 1.12], [141, 2, 7, 1.62], [8672, 2, 15, 2.16], [130, 1, 7, 0.77], [205, 2, 7, 2.2], [2778, 2, 8, 0.81], [11681, 2, 12, 5.0], [1777, 1, 7, 2.22], [305, 2, 7, 0.94], [6936, 2, 10, 2.79], [8648, 2, 9, 3.46], [593, 2, 11, 2.33], [990, 2, 7, 0.75], [2328, 2, 11, 0.94], [248, 1, 7, 0.71], [88, 10, 26, 1.69], [1007, 2, 12, 1.03], [83, 2, 7, 0.96], [345, 3, 7, 1.35], [5151, 2, 9, 1.71], [8650, 2, 9, 3.5], [412, 1, 9, 3.14], [361, 2, 7, 2.63], [22247, 2, 9, 2.4], [201, 3, 8, 1.25], [57, 1, 11, 0.68], [21793, 1, 7, 3.62], [10149, 3, 25, 3.26], [45, 2, 7, 2.65], [12721, 2, 10, 1.78], [7004, 1, 7, 1.34], [2054, 3, 9, 3.22], [10825, 21, 13, 2.11], [413, 1, 7, 2.79], [167, 3, 7, 2.5], [2057, 3, 7, 3.22], [74, 1, 7, 3.5], [6158, 2, 12, 2.62], [308, 1, 7, 2.44], [168, 3, 7, 1.38], [432, 3, 7, 1.61], [10, 2, 21, 1.91], [13028, 3, 7, 1.61], [7887, 4, 7, 0.77], [7036, 1, 7, 5.0], [3495, 3, 21, 1.64], [214, 3, 15, 0.77], [12870, 1, 11, 5.0], [335, 3, 46, 3.03], [5081, 2, 9, 0.59], [79, 1, 7, 0.73], [5208, 3, 13, 3.4], [9827, 3, 7, 0.86], [410, 1, 7, 1.54], [3889, 1, 7, 2.63], [95, 3, 21, 3.57], [5812, 3, 10, 2.24], [3893, 1, 7, 1.67], [1504, 2, 11, 0.89], [13260, 29, 7, 1.89], [23, 1, 7, 2.91], [94, 4, 7, 4.62], [7005, 1, 7, 1.44], [1490, 1, 7, 2.0], [411, 2, 7, 1.46], [25, 1, 7, 3.39], [998, 2, 7, 2.66], [1124, 2, 10, 1.74], [3980, 4, 7, 2.76], [21269, 3, 7, 5.0], [10574, 3, 9, 2.32], [5086, 1, 9, 2.04], [9691, 1, 7, 4.14], [856, 1, 7, 1.17], [2878, 1, 7, 3.5], [5660, 2, 7, 3.65], [11914, 1, 14, 1.02], [997, 2, 11, 3.39], [20927, 1, 9, 1.75], [9829, 3, 7, 3.0], [1703, 2, 7, 3.63], [8676, 2, 7, 1.94], [5209, 3, 9, 0.68], [9081, 3, 14, 3.64], [1622, 1, 10, 0.85], [192, 3, 22, 5.0], [952, 4, 7, 5.0], [20498, 1, 7, 1.79], [8674, 2, 10, 3.36], [8898, 3, 7, 5.0], [5513, 2, 7, 1.88], [1070, 7, 13, 1.15], [996, 2, 9, 4.36], [1091, 1, 7, 1.35], [12661, 1, 7, 5.0], [14037, 3, 7, 0.89], [13034, 3, 12, 3.24], [6097, 29, 14, 2.33], [1519, 3, 26, 0.67], [22317, 3, 8, 1.15], [24, 1, 7, 2.51], [20498, 3, 10, 3.52], [8274, 3, 9, 1.8], [4203, 1, 9, 1.27], [10529, 29, 9, 2.95], [9760, 29, 7, 0.62], [82, 2, 7, 1.39], [6097, 80, 7, 2.66], [1413, 15, 7, 1.69], [336, 15, 7, 0.67], [9082, 3, 21, 1.67], [11767, 1, 7, 0.9], [2104, 3, 12, 3.03], [23611, 3, 7, 3.74], [995, 2, 11, 4.19], [6098, 80, 7, 2.7], [66, 1, 7, 0.81], [11769, 1, 7, 0.9], [6098, 29, 7, 1.86], [66, 16, 7, 0.9], [13484, 1, 7, 4.31], [8945, 3, 8, 1.72], [2109, 3, 15, 0.83], [10780, 10, 7, 4.39], [20486, 1, 7, 4.81], [9372, 1, 7, 2.18], [5946, 1, 7, 2.62], [2537, 1, 7, 2.29], [972, 3, 8, 2.36], [7005, 1, 71, 2.72], [1490, 1, 52, 2.95], [411, 2, 97, 2.73], [25, 1, 58, 4.15], [998, 2, 233, 5.32], [1124, 2, 193, 2.68], [3980, 4, 500, 3.71], [21269, 3, 261, 6.0], [10574, 3, 450, 3.47], [5086, 1, 163, 4.44], [9691, 1, 66, 5.09], [856, 1, 31, 2.12], [2878, 1, 71, 4.45], [5660, 2, 154, 4.6], [11914, 1, 75, 3.92], [997, 2, 233, 4.34], [20927, 1, 69, 2.66], [9829, 3, 71, 3.95], [1703, 2, 144, 5.03], [8676, 2, 267, 2.88], [5209, 3, 499, 3.11], [9081, 3, 457, 6.0], [1622, 1, 102, 1.8], [192, 3, 1360, 6.0], [952, 4, 64, 6.0], [20498, 1, 102, 2.74], [8674, 2, 267, 4.31], [8898, 3, 247, 6.0], [1070, 7, 522, 3.06], [996, 2, 221, 5.54], [1091, 1, 43, 3.18], [12661, 1, 70, 5.96], [14037, 3, 180, 1.65], [13034, 3, 520, 4.92], [6097, 29, 33, 3.51], [1519, 3, 1450, 2.5], [22317, 3, 280, 2.81], [24, 1, 99, 4.06], [20498, 3, 522, 4.7], [4203, 1, 48, 2.93], [10529, 29, 39, 4.25], [9760, 29, 64, 2.78], [82, 2, 54, 2.34], [6097, 80, 62, 3.61], [1413, 15, 87, 2.97], [9082, 3, 2175, 3.67], [11767, 1, 171, 1.85], [23611, 3, 327, 4.7], [995, 2, 233, 5.84], [6098, 80, 68, 3.65], [66, 1, 36, 1.76], [11769, 1, 171, 1.85], [6098, 29, 36, 2.81], [66, 16, 80, 1.85], [13484, 1, 182, 5.25], [8945, 3, 612, 2.66], [2109, 3, 482, 1.78], [10780, 10, 387, 5.34], [20486, 1, 102, 5.76], [9372, 1, 213, 3.13], [5946, 1, 128, 3.57], [2537, 1, 37, 3.24], [972, 3, 618, 3.31]]</t>
-  </si>
-  <si>
-    <t>[[589, 2, 10, 0.87], [88, 10, 29, 1.1], [8915, 2, 12, 1.06], [6935, 2, 14, 4.34], [2778, 2, 7, 0.55], [305, 2, 7, 1.07], [2328, 2, 11, 1.46], [326, 2, 14, 2.52], [6936, 2, 7, 3.27], [8650, 2, 11, 5.0], [8648, 2, 7, 3.27], [1446, 2, 7, 1.57], [7004, 1, 9, 2.45], [205, 2, 7, 1.67], [2775, 2, 7, 1.79], [144, 2, 9, 2.5], [10, 2, 9, 2.05], [1124, 2, 7, 1.59], [94, 4, 7, 3.76], [7885, 4, 7, 1.19], [3893, 1, 9, 1.86], [7886, 4, 7, 0.92], [141, 2, 9, 2.28], [146, 2, 7, 2.31], [3891, 1, 9, 1.3], [2055, 3, 7, 1.9], [75, 2, 9, 3.67], [21793, 1, 7, 1.66], [206, 2, 7, 1.37], [12349, 1, 7, 4.12], [10993, 2, 7, 0.87], [5208, 3, 11, 2.22], [2054, 3, 7, 4.17], [3889, 1, 26, 2.13], [3980, 4, 8, 2.38], [7005, 1, 7, 1.79], [12870, 1, 7, 3.72], [145, 2, 7, 3.0], [5165, 1, 7, 2.07], [2912, 1, 7, 3.71], [10149, 3, 21, 3.06], [20927, 1, 9, 2.86], [9760, 29, 7, 0.97], [998, 2, 7, 4.0], [2436, 4, 9, 1.11], [7887, 4, 11, 2.05], [417, 2, 9, 2.28], [997, 2, 7, 2.49], [2424, 80, 7, 2.78], [3, 2, 7, 2.2], [6158, 2, 11, 1.56], [632, 11, 21, 1.4], [5076, 1, 9, 2.78], [9491, 21, 26, 3.05], [972, 3, 9, 2.36], [229, 1, 7, 3.17], [214, 3, 15, 1.02], [74, 1, 7, 4.99], [3495, 3, 18, 2.56], [523, 2, 7, 1.19], [11770, 1, 7, 3.83], [7573, 1, 16, 5.0], [11953, 1, 7, 1.6], [5165, 2, 8, 2.08], [24257, 1, 7, 1.44], [12721, 2, 7, 1.73], [2423, 80, 9, 4.42], [1492, 1, 7, 1.14], [12350, 1, 7, 5.0], [11772, 1, 7, 3.6], [192, 3, 15, 2.09], [1622, 1, 7, 3.49], [2912, 2, 12, 4.3], [22317, 3, 7, 0.81], [8677, 3, 7, 2.5], [2438, 2, 8, 3.57], [5434, 1, 7, 2.89], [8898, 3, 7, 5.0], [823, 1, 7, 1.25], [361, 2, 7, 1.77], [2424, 29, 7, 2.71], [9372, 1, 7, 3.93], [4253, 1, 7, 0.75], [3975, 4, 9, 3.74], [3900, 3, 7, 1.68], [33, 1, 7, 1.96], [5209, 3, 53, 3.59], [6496, 1, 7, 3.25], [7567, 3, 7, 2.27], [37, 1, 7, 1.59], [5946, 1, 9, 0.77], [2805, 137, 7, 2.67], [335, 3, 15, 0.89], [11812, 1, 7, 0.9], [12764, 2, 10, 1.23], [10407, 10, 12, 3.01], [220, 4, 7, 3.39], [6097, 80, 7, 2.16], [972, 1, 7, 2.36], [1703, 2, 7, 1.67], [10388, 2, 7, 1.17], [24258, 1, 7, 2.51], [1339, 3, 16, 0.66], [11490, 1, 7, 0.96], [38, 1, 7, 1.96], [35, 1, 7, 1.96], [1414, 15, 7, 0.75], [1274, 1, 7, 1.33], [22247, 2, 7, 2.11], [161, 3, 9, 4.12], [11236, 2, 7, 1.19], [4232, 80, 7, 3.57], [2104, 3, 15, 1.32], [1895, 3, 7, 1.69], [12212, 29, 7, 1.25], [12979, 25, 15, 1.36], [13893, 2, 7, 2.25], [10631, 2, 7, 3.04], [8659, 1, 7, 1.64], [11813, 1, 7, 1.69], [216, 4, 7, 1.17], [1309, 1, 7, 0.87], [8635, 3, 7, 2.45], [10093, 3, 14, 1.76], [12728, 1, 7, 2.37], [4940, 1, 7, 0.98], [8104, 1, 7, 3.87], [8274, 3, 7, 2.04], [76, 2, 7, 0.9], [788, 2, 7, 1.02], [12501, 1, 7, 2.39], [13928, 1, 7, 3.04], [5164, 1, 7, 1.99], [11942, 29, 7, 1.31], [10386, 2, 7, 2.99], [19931, 1, 7, 2.43], [11772, 1, 233, 4.79], [192, 3, 1454, 3.29], [1622, 1, 113, 4.69], [2912, 2, 414, 5.51], [22317, 3, 365, 2.01], [8677, 3, 340, 3.7], [2438, 2, 690, 5.39], [8898, 3, 279, 6.0], [823, 1, 42, 2.45], [361, 2, 162, 2.97], [2424, 29, 39, 3.91], [9372, 1, 264, 5.13], [4253, 1, 199, 1.95], [3975, 4, 476, 4.93], [3900, 3, 10, 2.54], [33, 1, 117, 3.17], [5209, 3, 117, 4.26], [6496, 1, 42, 4.45], [7567, 3, 80, 3.47], [37, 1, 117, 2.79], [5946, 1, 136, 2.36], [2805, 137, 191, 3.87], [335, 3, 1510, 2.09], [11812, 1, 249, 2.1], [12764, 2, 768, 2.59], [220, 4, 50, 4.59], [6097, 80, 69, 3.49], [972, 1, 114, 3.57], [1703, 2, 189, 2.87], [10388, 2, 254, 2.37], [1339, 3, 406, 1.31], [11490, 1, 125, 2.16], [38, 1, 127, 3.17], [35, 1, 117, 3.17], [1414, 15, 114, 1.95], [1274, 1, 95, 2.53], [22247, 2, 328, 3.32], [161, 3, 754, 5.32], [11236, 2, 255, 2.39], [4232, 80, 171, 4.77], [2104, 3, 389, 2.52], [1895, 3, 339, 2.88], [12212, 29, 132, 2.45], [12979, 25, 683, 2.57], [13893, 2, 316, 3.45], [10631, 2, 236, 4.24], [8659, 1, 139, 2.84], [11813, 1, 365, 2.89], [216, 4, 44, 2.37], [1309, 1, 60, 2.07], [10093, 3, 950, 2.97], [12728, 1, 340, 3.57], [4940, 1, 140, 2.18], [8104, 1, 222, 5.07], [76, 2, 128, 2.1], [788, 2, 43, 2.08], [12501, 1, 343, 3.6], [13928, 1, 49, 4.24], [5164, 1, 54, 3.19], [11942, 29, 111, 2.51], [10386, 2, 254, 4.19], [19931, 1, 472, 3.64]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 10, 2.95], [305, 2, 7, 1.23], [2778, 2, 11, 1.07], [6936, 2, 11, 3.69], [205, 2, 9, 0.98], [88, 10, 14, 0.72], [144, 2, 9, 2.84], [11681, 2, 9, 3.84], [8915, 2, 8, 1.51], [589, 2, 8, 0.61], [326, 2, 11, 1.94], [2327, 2, 7, 0.98], [8650, 2, 9, 2.48], [7036, 1, 7, 2.85], [593, 2, 10, 1.04], [11685, 2, 7, 3.73], [3893, 1, 7, 0.73], [141, 2, 9, 1.83], [2775, 2, 7, 2.04], [206, 2, 7, 1.5], [9507, 3, 7, 0.69], [7004, 1, 7, 2.52], [3840, 1, 7, 0.77], [3980, 4, 7, 2.37], [143, 2, 9, 3.03], [3891, 1, 9, 1.24], [2050, 3, 7, 3.3], [146, 2, 9, 2.61], [7885, 4, 7, 1.27], [7886, 4, 9, 1.0], [3889, 1, 7, 0.67], [2055, 3, 9, 3.45], [2328, 2, 7, 0.81], [10, 2, 7, 0.69], [2054, 3, 7, 3.67], [362, 2, 7, 2.81], [12870, 1, 9, 3.96], [8672, 2, 14, 2.43], [10993, 2, 7, 1.81], [12349, 1, 7, 3.92], [3975, 4, 7, 2.76], [7084, 3, 7, 2.36], [21793, 1, 7, 2.58], [5165, 1, 7, 2.14], [2057, 3, 9, 5.0], [1446, 2, 7, 1.73], [75, 2, 7, 0.89], [5208, 3, 8, 3.29], [145, 2, 7, 2.5], [2991, 3, 7, 2.7], [523, 2, 7, 2.23], [94, 4, 7, 4.1], [3982, 3, 21, 2.58], [7005, 1, 7, 1.64], [3495, 3, 21, 3.84], [20927, 1, 7, 2.82], [997, 2, 7, 3.03], [7887, 4, 9, 2.05], [6158, 2, 7, 4.2], [2912, 1, 7, 3.97], [82, 2, 7, 1.52], [61, 3, 7, 2.71], [192, 3, 27, 3.04], [35, 1, 9, 3.13], [956, 2, 7, 0.67], [417, 2, 7, 1.18], [5165, 2, 8, 2.12], [22316, 3, 9, 1.23], [6497, 1, 7, 3.08], [998, 2, 7, 3.03], [11953, 1, 9, 0.9], [7567, 3, 7, 3.73], [286, 3, 7, 1.39], [11769, 1, 7, 2.41], [389, 4, 7, 1.64], [1492, 1, 7, 0.92], [996, 2, 9, 3.58], [346, 3, 7, 2.22], [12344, 1, 7, 3.92], [4176, 4, 11, 3.49], [11767, 1, 7, 1.5], [39, 1, 7, 2.0], [7573, 1, 7, 4.14], [410, 1, 7, 2.4], [6496, 1, 7, 2.09], [37, 1, 7, 1.75], [8677, 3, 7, 3.84], [972, 3, 8, 3.56], [74, 1, 7, 3.1], [12721, 2, 7, 2.35], [411, 2, 7, 1.37], [2104, 3, 12, 3.03], [11490, 1, 7, 1.04], [2436, 4, 7, 3.65], [12212, 29, 7, 1.19], [22317, 3, 9, 1.42], [2912, 2, 8, 3.96], [201, 3, 9, 2.61], [345, 3, 7, 0.96], [336, 15, 7, 1.8], [1413, 15, 7, 1.12], [1274, 1, 7, 1.94], [11085, 2, 8, 3.16], [8121, 3, 7, 1.17], [1277, 1, 7, 2.75], [3979, 3, 8, 2.31], [3, 2, 14, 2.68], [14037, 3, 7, 4.04], [21269, 3, 7, 5.0], [823, 1, 7, 1.08], [38, 1, 7, 1.75], [13023, 3, 7, 2.92], [6494, 1, 7, 0.89], [9, 1, 7, 0.69], [12271, 2, 7, 4.85], [8673, 2, 7, 4.12], [36, 1, 7, 1.27], [9784, 1, 7, 2.16], [22247, 2, 9, 3.44], [8676, 2, 7, 4.0], [10408, 10, 10, 3.03], [3577, 25, 7, 1.5], [2805, 137, 8, 2.05], [5209, 3, 7, 3.29], [1414, 15, 7, 1.0], [20498, 3, 8, 1.25], [10936, 2, 7, 2.38], [95, 3, 22, 1.03], [2878, 1, 7, 2.23], [11812, 1, 7, 0.9], [10388, 2, 7, 1.16], [9491, 21, 16, 3.19], [13928, 1, 7, 2.43], [346, 1, 7, 2.34], [399, 24, 7, 5.0], [6497, 1, 39, 4.21], [998, 2, 257, 4.15], [11953, 1, 186, 3.09], [7567, 3, 68, 4.86], [286, 3, 152, 2.52], [11769, 1, 158, 3.54], [389, 4, 217, 2.77], [1492, 1, 40, 2.05], [996, 2, 220, 5.45], [346, 3, 222, 3.08], [12344, 1, 623, 5.04], [4176, 4, 443, 5.45], [11767, 1, 174, 2.62], [39, 1, 103, 3.99], [7573, 1, 338, 5.27], [410, 1, 25, 3.03], [6496, 1, 39, 3.22], [37, 1, 103, 3.47], [8677, 3, 266, 4.97], [972, 3, 636, 4.68], [74, 1, 198, 4.23], [12721, 2, 278, 3.48], [411, 2, 116, 2.49], [11490, 1, 117, 2.17], [2436, 4, 103, 4.77], [12212, 29, 123, 2.32], [22317, 3, 291, 3.63], [2912, 2, 388, 5.09], [201, 3, 274, 4.56], [345, 3, 320, 2.09], [336, 15, 112, 3.47], [1413, 15, 106, 2.25], [1274, 1, 88, 3.07], [11085, 2, 494, 5.4], [8121, 3, 316, 2.3], [1277, 1, 177, 3.87], [3979, 3, 854, 3.44], [3, 2, 43, 3.81], [14037, 3, 353, 5.17], [21269, 3, 270, 6.0], [823, 1, 39, 2.21], [38, 1, 108, 2.87], [13023, 3, 542, 4.04], [6494, 1, 56, 2.02], [9, 1, 36, 1.99], [12271, 2, 67, 5.97], [8673, 2, 271, 5.25], [36, 1, 120, 2.39], [9784, 1, 76, 3.29], [22247, 2, 263, 5.35], [8676, 2, 265, 5.13], [3577, 25, 86, 2.63], [2805, 137, 184, 3.18], [5209, 3, 531, 4.39], [1414, 15, 95, 2.28], [20498, 3, 568, 2.39], [10936, 2, 144, 3.5], [95, 3, 1211, 2.17], [2878, 1, 19, 2.86], [11812, 1, 233, 2.02], [10388, 2, 214, 2.28], [9491, 21, 2155, 4.3], [13928, 1, 45, 3.56], [346, 1, 37, 3.26], [399, 24, 141, 6.0]]</t>
-  </si>
-  <si>
-    <t>[[141, 2, 11, 0.63], [8650, 2, 7, 2.81], [361, 2, 9, 0.7], [5491, 2, 7, 1.02], [589, 2, 11, 0.95], [11685, 2, 11, 2.56], [417, 2, 9, 0.71], [326, 2, 7, 1.18], [6935, 2, 19, 4.24], [205, 2, 7, 0.69], [1124, 2, 10, 1.59], [8648, 2, 7, 1.9], [12721, 2, 14, 1.48], [248, 1, 7, 1.23], [11838, 2, 9, 1.27], [11837, 2, 7, 1.6], [142, 2, 9, 0.68], [8915, 2, 7, 0.73], [6936, 2, 11, 2.52], [2778, 2, 11, 1.59], [8676, 2, 7, 5.0], [9507, 3, 7, 0.67], [305, 2, 9, 2.44], [21793, 1, 8, 3.39], [22247, 2, 7, 2.28], [11835, 2, 7, 1.41], [593, 2, 8, 1.45], [616, 2, 9, 1.06], [411, 2, 7, 1.31], [990, 2, 7, 0.73], [10574, 3, 11, 2.59], [12353, 1, 7, 5.0], [8673, 2, 7, 2.91], [2775, 2, 7, 0.92], [145, 2, 7, 1.75], [6158, 2, 11, 2.15], [11836, 2, 7, 3.33], [2055, 3, 7, 2.72], [3495, 3, 21, 2.66], [10149, 3, 21, 1.49], [88, 10, 20, 3.3], [12344, 1, 7, 5.0], [146, 2, 7, 1.75], [75, 2, 7, 3.48], [2054, 3, 10, 2.05], [2057, 3, 7, 3.2], [10993, 2, 7, 1.5], [7705, 2, 7, 2.74], [12343, 1, 7, 5.0], [7885, 4, 7, 1.67], [61, 3, 7, 0.69], [2424, 29, 7, 3.73], [144, 2, 7, 1.75], [7704, 2, 7, 2.74], [2859, 15, 7, 1.21], [2423, 29, 7, 2.43], [5165, 1, 7, 1.66], [2423, 80, 7, 2.39], [201, 3, 9, 2.66], [335, 3, 17, 1.67], [308, 1, 9, 3.05], [9126, 1, 7, 3.14], [13028, 3, 7, 1.23], [1519, 3, 20, 0.67], [214, 3, 15, 1.77], [2424, 80, 7, 3.68], [12352, 1, 7, 5.0], [7004, 1, 7, 2.48], [345, 3, 7, 0.94], [13023, 3, 10, 2.77], [13034, 3, 9, 2.71], [6952, 1, 7, 1.89], [2703, 3, 7, 4.84], [11770, 1, 7, 4.83], [6494, 1, 7, 0.9], [3430, 15, 7, 1.66], [410, 1, 7, 1.0], [432, 3, 7, 2.72], [94, 4, 7, 4.04], [13928, 1, 7, 2.28], [1492, 1, 7, 1.6], [20927, 1, 7, 2.01], [1886, 2, 7, 0.85], [3893, 1, 7, 2.46], [2331, 1, 7, 3.16], [12347, 1, 7, 2.69], [3891, 1, 7, 5.0], [3981, 3, 13, 1.14], [11811, 1, 7, 1.93], [13033, 3, 8, 1.19], [11954, 1, 7, 1.27], [9690, 1, 7, 1.46], [114, 3, 7, 0.69], [952, 4, 7, 4.31], [1309, 1, 7, 1.77], [105, 3, 7, 0.67], [1274, 1, 7, 2.27], [5584, 3, 7, 2.72], [5946, 1, 7, 2.67], [7886, 4, 9, 1.55], [5733, 2, 8, 1.75], [5812, 3, 7, 2.91], [11089, 1, 7, 1.96], [3, 2, 7, 2.12], [7708, 2, 7, 1.81], [8898, 3, 7, 4.74], [10410, 10, 12, 2.97], [7703, 2, 7, 1.69], [95, 3, 13, 4.5], [3478, 2, 7, 4.0], [10407, 10, 12, 3.01], [9507, 1, 7, 0.69], [22558, 3, 7, 4.63], [8274, 3, 7, 1.75], [3980, 4, 9, 3.46], [9082, 3, 24, 2.83], [957, 2, 7, 0.69], [5165, 2, 8, 1.48], [20555, 2, 7, 1.14], [10408, 10, 10, 1.37], [192, 3, 17, 4.09], [10398, 2, 7, 2.52], [247, 1, 7, 4.64], [963, 3, 7, 3.23], [823, 1, 7, 4.66], [13264, 29, 7, 0.92], [11603, 2, 9, 2.17], [2805, 137, 10, 4.36], [7005, 1, 7, 2.01], [5811, 3, 8, 4.0], [6630, 3, 7, 3.61], [20969, 3, 7, 1.66], [186, 3, 15, 2.26], [9491, 21, 16, 5.0], [21003, 2, 7, 3.61], [12229, 2, 7, 0.87], [7004, 1, 21, 3.23], [345, 3, 315, 2.25], [13023, 3, 629, 4.08], [13034, 3, 629, 4.02], [6952, 1, 192, 3.2], [2703, 3, 305, 6.0], [11770, 1, 216, 6.0], [6494, 1, 55, 2.21], [3430, 15, 73, 2.97], [410, 1, 112, 2.31], [432, 3, 309, 4.03], [94, 4, 123, 5.36], [13928, 1, 50, 3.59], [1492, 1, 39, 2.91], [20927, 1, 84, 3.33], [1886, 2, 167, 2.16], [3893, 1, 128, 3.78], [2331, 1, 124, 4.47], [12347, 1, 642, 4.0], [3891, 1, 48, 6.0], [3981, 3, 1788, 2.46], [11811, 1, 479, 3.25], [13033, 3, 629, 2.49], [11954, 1, 209, 2.58], [9690, 1, 79, 2.77], [114, 3, 66, 1.44], [952, 4, 76, 5.62], [1309, 1, 55, 3.08], [105, 3, 66, 1.42], [1274, 1, 87, 3.58], [5584, 3, 243, 4.04], [5946, 1, 128, 3.99], [5733, 2, 53, 3.06], [5812, 3, 629, 4.22], [11089, 1, 182, 3.28], [3, 2, 127, 3.44], [7708, 2, 186, 3.13], [8898, 3, 294, 6.0], [7703, 2, 186, 3.01], [95, 3, 1052, 5.82], [3478, 2, 77, 5.31], [22558, 3, 481, 5.94], [3980, 4, 513, 4.77], [9082, 3, 2607, 4.17], [957, 2, 115, 2.0], [5165, 2, 406, 2.79], [20555, 2, 61, 2.45], [10408, 10, 840, 2.68], [192, 3, 1406, 5.39], [10398, 2, 155, 3.83], [247, 1, 92, 5.95], [963, 3, 404, 4.54], [823, 1, 39, 5.97], [13264, 29, 77, 2.23], [2805, 137, 181, 5.67], [7005, 1, 84, 3.33], [5811, 3, 626, 5.32], [6630, 3, 99, 4.92], [20969, 3, 626, 2.98], [186, 3, 699, 3.58], [9491, 21, 2195, 6.0], [21003, 2, 302, 4.93], [12229, 2, 161, 2.19]]</t>
-  </si>
-  <si>
-    <t>[[2778, 2, 26, 1.08], [6935, 2, 17, 2.06], [305, 2, 9, 1.46], [6936, 2, 11, 2.9], [2775, 2, 7, 1.39], [145, 2, 7, 2.5], [12721, 2, 10, 1.74], [2327, 2, 9, 1.82], [361, 2, 7, 0.77], [146, 2, 9, 2.15], [8675, 2, 8, 1.61], [362, 2, 9, 1.33], [141, 2, 7, 0.77], [11681, 2, 13, 2.3], [205, 2, 9, 1.26], [8673, 2, 11, 2.91], [8676, 2, 9, 4.5], [308, 1, 17, 2.16], [1124, 2, 10, 1.74], [144, 2, 9, 2.57], [11835, 2, 7, 2.22], [5493, 2, 7, 0.87], [417, 2, 7, 1.94], [8650, 2, 11, 4.38], [11837, 2, 12, 1.48], [3, 2, 7, 2.41], [6097, 80, 9, 4.97], [589, 2, 7, 1.75], [2423, 29, 7, 2.93], [206, 2, 7, 2.1], [6097, 29, 11, 4.97], [11836, 2, 9, 1.44], [593, 2, 10, 2.98], [990, 2, 7, 1.0], [6098, 80, 7, 4.26], [88, 10, 16, 2.4], [523, 2, 7, 1.71], [13260, 29, 7, 2.7], [2423, 80, 7, 1.71], [8915, 2, 9, 1.5], [10993, 2, 7, 1.0], [6494, 1, 7, 0.9], [326, 2, 7, 1.55], [6158, 2, 11, 2.15], [75, 2, 7, 3.25], [10574, 3, 12, 2.19], [1339, 1, 7, 0.83], [335, 3, 17, 1.67], [1492, 1, 7, 1.6], [1050, 2, 7, 0.73], [411, 2, 7, 1.37], [947, 15, 7, 1.46], [151, 1, 7, 1.25], [2859, 15, 7, 1.7], [7004, 1, 7, 2.66], [1339, 3, 21, 0.88], [6496, 1, 7, 4.02], [13264, 29, 7, 1.0], [345, 3, 7, 3.29], [10149, 3, 21, 1.48], [61, 3, 7, 0.85], [7704, 2, 11, 4.33], [1049, 2, 7, 1.7], [1243, 2, 7, 3.7], [964, 15, 7, 3.08], [432, 3, 7, 2.7], [13259, 29, 13, 2.83], [22558, 3, 7, 3.91], [201, 3, 7, 3.56], [1277, 1, 7, 3.9], [5208, 3, 9, 4.93], [7705, 2, 7, 4.6], [2912, 1, 7, 3.91], [963, 3, 7, 0.78], [159, 3, 9, 1.18], [229, 1, 7, 2.59], [186, 3, 15, 1.62], [2438, 1, 7, 2.39], [21793, 1, 8, 3.04], [11738, 2, 7, 0.89], [2331, 1, 7, 2.5], [10407, 10, 12, 3.01], [3478, 2, 7, 3.04], [7706, 2, 7, 4.6], [12229, 2, 7, 1.37], [13928, 1, 7, 2.7], [1548, 1, 7, 2.35], [2703, 3, 7, 4.84], [11844, 2, 7, 3.97], [8944, 3, 7, 0.71], [11490, 1, 7, 1.66], [7036, 1, 7, 1.46], [94, 4, 7, 4.04], [159, 16, 7, 1.33], [114, 3, 7, 1.05], [11687, 2, 7, 1.52], [956, 2, 7, 1.0], [9126, 1, 7, 3.7], [10408, 10, 10, 3.03], [7708, 2, 9, 3.7], [1886, 2, 7, 0.85], [11159, 1, 14, 2.41], [10406, 10, 12, 1.72], [22125, 2, 7, 0.69], [20927, 1, 7, 3.38], [11586, 1, 11, 4.91], [11689, 2, 7, 1.48], [9065, 2, 7, 1.27], [2438, 2, 8, 2.2], [12870, 1, 7, 1.89], [11690, 2, 7, 1.02], [7005, 1, 7, 2.93], [1274, 1, 7, 3.02], [410, 1, 7, 1.0], [1699, 3, 7, 2.9], [2991, 3, 7, 5.0], [2805, 137, 10, 3.48], [21781, 2, 7, 0.9], [152, 21, 7, 1.21], [13259, 25, 7, 2.16], [4253, 1, 7, 2.24], [3495, 3, 21, 2.66], [5976, 1, 7, 4.22], [159, 1, 7, 1.29], [5584, 3, 7, 2.72], [9690, 1, 7, 1.46], [5769, 3, 10, 0.93], [7007, 1, 7, 1.52], [9239, 29, 8, 3.41], [9209, 29, 7, 2.95], [9491, 21, 16, 2.85], [11811, 1, 7, 1.93], [9239, 25, 7, 3.05], [7886, 4, 9, 1.11], [8600, 1, 7, 1.87], [5769, 1, 7, 0.89], [22558, 3, 481, 5.22], [201, 3, 306, 4.87], [1277, 1, 203, 5.21], [5208, 3, 561, 6.0], [7705, 2, 70, 5.6], [2912, 1, 48, 5.22], [963, 3, 426, 2.1], [159, 3, 754, 2.48], [229, 1, 87, 3.91], [186, 3, 703, 2.92], [2438, 1, 56, 3.7], [21793, 1, 247, 4.35], [11738, 2, 61, 2.2], [2331, 1, 124, 3.81], [3478, 2, 79, 4.35], [7706, 2, 70, 5.62], [12229, 2, 154, 3.4], [13928, 1, 50, 4.01], [1548, 1, 100, 3.66], [2703, 3, 305, 6.0], [11844, 2, 286, 5.28], [8944, 3, 59, 1.46], [11490, 1, 115, 2.97], [7036, 1, 135, 2.77], [94, 4, 123, 5.36], [159, 16, 84, 2.64], [114, 3, 260, 2.37], [11687, 2, 320, 2.83], [956, 2, 115, 2.32], [9126, 1, 72, 5.02], [7708, 2, 179, 5.02], [1886, 2, 167, 2.16], [11159, 1, 503, 3.73], [10406, 10, 1925, 3.02], [22125, 2, 50, 1.94], [20927, 1, 83, 4.69], [11586, 1, 382, 6.0], [11689, 2, 320, 2.79], [9065, 2, 320, 2.58], [2438, 2, 669, 3.51], [12870, 1, 148, 3.2], [11690, 2, 320, 2.33], [7005, 1, 83, 4.24], [1274, 1, 86, 4.33], [410, 1, 112, 2.31], [1699, 3, 220, 4.22], [2991, 3, 166, 6.0], [2805, 137, 173, 4.79], [13259, 25, 73, 3.47], [4253, 1, 178, 3.56], [3495, 3, 1026, 3.97], [5976, 1, 161, 5.53], [159, 1, 42, 2.6], [5584, 3, 243, 4.04], [9690, 1, 79, 2.77], [5769, 3, 1118, 2.39], [7007, 1, 83, 2.84], [9239, 29, 30, 4.72], [9209, 29, 35, 4.26], [9491, 21, 2121, 4.14], [11811, 1, 479, 3.25], [9239, 25, 89, 4.36], [8600, 1, 148, 3.18], [5769, 1, 65, 2.2]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 15, 2.15], [141, 2, 9, 0.92], [2778, 2, 20, 1.44], [362, 2, 9, 1.19], [361, 2, 9, 1.35], [6935, 2, 23, 4.75], [12721, 2, 14, 3.77], [8676, 2, 7, 1.6], [2049, 3, 26, 0.5], [417, 2, 9, 1.35], [3, 2, 9, 3.02], [8675, 2, 9, 1.81], [22247, 2, 7, 1.92], [6936, 2, 9, 1.9], [523, 2, 7, 1.77], [305, 2, 7, 1.12], [11838, 2, 7, 3.33], [8650, 2, 9, 3.44], [2328, 2, 11, 2.32], [2776, 2, 9, 2.33], [8648, 2, 7, 3.25], [2327, 2, 9, 1.48], [616, 2, 7, 0.89], [11739, 2, 7, 1.27], [11837, 2, 7, 3.33], [411, 2, 7, 1.48], [2805, 137, 10, 4.64], [6097, 80, 7, 4.97], [11835, 2, 7, 1.42], [6097, 29, 7, 1.85], [146, 2, 7, 2.73], [10993, 2, 7, 0.73], [326, 2, 7, 1.85], [583, 2, 7, 1.53], [10149, 3, 21, 3.22], [145, 2, 7, 1.75], [11836, 2, 7, 3.33], [144, 2, 7, 2.73], [308, 1, 11, 4.07], [75, 2, 7, 3.0], [10574, 3, 12, 2.63], [6494, 1, 7, 0.9], [2057, 3, 7, 3.2], [2055, 3, 7, 2.72], [2422, 29, 7, 1.84], [2054, 3, 7, 2.69], [6098, 80, 7, 2.01], [6098, 29, 7, 2.01], [1243, 2, 7, 3.7], [8915, 2, 7, 1.75], [1886, 2, 7, 0.85], [21793, 1, 8, 3.04], [12345, 1, 7, 3.11], [12349, 1, 7, 3.13], [1492, 1, 7, 1.6], [2859, 15, 7, 1.4], [247, 1, 7, 3.71], [3478, 2, 7, 2.32], [6158, 2, 11, 2.13], [335, 3, 17, 1.67], [201, 3, 7, 2.27], [5165, 1, 7, 1.66], [7084, 3, 7, 4.18], [5208, 3, 9, 3.17], [13928, 1, 7, 2.28], [336, 15, 7, 0.71], [3934, 5, 12, 2.71], [5812, 3, 9, 3.96], [12526, 2, 7, 1.38], [192, 3, 21, 3.69], [4253, 1, 7, 2.24], [94, 4, 7, 4.04], [1703, 2, 7, 4.16], [5811, 3, 10, 4.04], [9491, 21, 16, 2.29], [186, 3, 15, 1.62], [214, 3, 15, 3.19], [11490, 1, 7, 0.73], [2821, 3, 13, 4.39], [61, 3, 9, 0.85], [11767, 1, 7, 2.1], [5813, 3, 7, 3.84], [1050, 2, 7, 1.7], [1309, 1, 7, 1.77], [8938, 2, 7, 4.47], [24722, 2, 7, 1.62], [2991, 3, 7, 4.73], [2912, 1, 7, 0.73], [10398, 2, 7, 1.37], [13260, 29, 7, 2.71], [3495, 3, 21, 2.66], [11671, 1, 7, 3.91], [2438, 2, 8, 2.2], [11771, 1, 7, 4.08], [8599, 1, 7, 5.0], [229, 1, 7, 2.64], [11811, 1, 7, 1.93], [8944, 3, 7, 0.71], [8943, 3, 7, 1.28], [1049, 2, 7, 1.7], [12764, 2, 8, 0.75], [13928, 2, 7, 2.28], [7004, 1, 7, 2.53], [7036, 1, 7, 1.46], [955, 2, 7, 0.85], [11808, 1, 7, 4.76], [10124, 1, 7, 4.18], [5584, 3, 7, 2.72], [22573, 2, 7, 1.46], [3334, 5, 7, 4.39], [8897, 3, 7, 2.37], [9690, 1, 7, 1.45], [18964, 1, 7, 2.18], [6575, 3, 7, 1.37], [20927, 1, 7, 3.7], [1523, 1, 7, 4.47], [45, 2, 7, 4.64], [8274, 3, 7, 2.04], [2438, 1, 7, 2.39], [4001, 3, 17, 2.16], [1277, 1, 7, 3.9], [11886, 2, 7, 1.62], [9239, 29, 8, 3.41], [21269, 3, 7, 4.68], [13258, 29, 13, 4.0], [105, 3, 7, 0.83], [11678, 1, 7, 3.09], [1701, 2, 7, 3.47], [3477, 2, 7, 2.24], [10181, 26, 8, 0.81], [5165, 2, 8, 1.48], [7567, 3, 7, 0.79], [9209, 29, 7, 4.72], [3984, 3, 8, 1.07], [8635, 3, 7, 2.45], [5812, 3, 626, 5.28], [12526, 2, 288, 2.69], [192, 3, 1390, 5.02], [4253, 1, 178, 3.56], [94, 4, 123, 5.36], [1703, 2, 169, 5.48], [5811, 3, 626, 5.36], [9491, 21, 2235, 3.57], [186, 3, 703, 2.92], [11490, 1, 102, 2.01], [2821, 3, 1360, 5.7], [61, 3, 223, 2.16], [11767, 1, 170, 3.41], [5813, 3, 626, 5.16], [1050, 2, 30, 2.45], [1309, 1, 55, 3.08], [8938, 2, 74, 5.48], [24722, 2, 23, 2.62], [2991, 3, 162, 6.0], [2912, 1, 13, 1.48], [10398, 2, 156, 2.68], [13260, 29, 73, 4.02], [3495, 3, 1026, 3.97], [11671, 1, 304, 5.22], [2438, 2, 669, 3.51], [11771, 1, 214, 5.39], [8599, 1, 148, 6.0], [229, 1, 86, 3.95], [11811, 1, 479, 3.25], [8944, 3, 59, 1.46], [8943, 3, 401, 2.59], [1049, 2, 30, 2.45], [12764, 2, 787, 2.06], [13928, 2, 25, 3.59], [7004, 1, 83, 3.84], [7036, 1, 135, 2.77], [955, 2, 115, 2.17], [11808, 1, 497, 6.0], [10124, 1, 107, 5.49], [5584, 3, 243, 4.04], [22573, 2, 80, 2.77], [3334, 5, 180, 5.7], [8897, 3, 283, 3.68], [9690, 1, 79, 2.76], [18964, 1, 72, 3.49], [6575, 3, 262, 2.68], [20927, 1, 21, 4.45], [1523, 1, 49, 5.78], [45, 2, 112, 5.96], [2438, 1, 56, 3.7], [4001, 3, 857, 3.48], [1277, 1, 203, 5.21], [11886, 2, 204, 2.93], [9239, 29, 30, 4.72], [21269, 3, 303, 6.0], [13258, 29, 41, 5.31], [105, 3, 197, 2.08], [11678, 1, 474, 4.41], [1701, 2, 168, 4.79], [3477, 2, 55, 3.56], [10181, 26, 148, 2.12], [5165, 2, 406, 2.79], [7567, 3, 74, 2.1], [9209, 29, 34, 6.0], [3984, 3, 1763, 2.37]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 17, 2.06], [305, 2, 7, 0.88], [8650, 2, 9, 2.32], [2778, 2, 20, 1.61], [8672, 2, 9, 4.04], [143, 2, 7, 2.76], [362, 2, 9, 1.05], [6936, 2, 11, 2.87], [145, 2, 9, 1.91], [11837, 2, 7, 3.47], [361, 2, 9, 1.61], [417, 2, 9, 1.61], [205, 2, 7, 1.08], [75, 2, 9, 1.92], [11681, 2, 13, 2.3], [1124, 2, 10, 1.59], [589, 2, 11, 0.66], [146, 2, 7, 1.1], [11737, 2, 9, 1.5], [8648, 2, 7, 2.12], [12721, 2, 13, 3.55], [523, 2, 9, 1.21], [8673, 2, 11, 2.91], [1504, 2, 13, 1.48], [8853, 2, 9, 3.45], [308, 1, 17, 4.6], [206, 2, 7, 2.28], [326, 2, 9, 1.93], [11835, 2, 7, 0.94], [990, 2, 7, 0.92], [8675, 2, 9, 3.6], [88, 10, 26, 1.79], [8915, 2, 7, 2.51], [144, 2, 7, 1.91], [1005, 2, 7, 2.48], [434, 2, 9, 1.04], [11739, 2, 7, 0.98], [142, 2, 9, 1.61], [8676, 2, 7, 5.0], [2424, 29, 7, 2.34], [9507, 3, 7, 0.67], [6158, 2, 15, 1.54], [7704, 2, 11, 3.78], [2423, 29, 7, 2.77], [11836, 2, 7, 1.62], [2424, 80, 7, 2.57], [7705, 2, 9, 4.26], [11738, 2, 7, 0.85], [1413, 15, 7, 1.49], [7706, 2, 7, 2.37], [2423, 80, 7, 2.23], [3478, 2, 7, 3.89], [7004, 1, 7, 3.0], [944, 15, 9, 0.77], [2859, 15, 7, 2.7], [2054, 3, 7, 3.81], [74, 1, 7, 2.58], [3429, 15, 9, 0.71], [10149, 3, 21, 1.79], [10993, 2, 7, 1.25], [2055, 3, 7, 3.87], [18964, 1, 7, 2.66], [12343, 1, 7, 5.0], [94, 4, 7, 4.25], [13928, 1, 7, 2.7], [13028, 3, 7, 1.23], [13034, 3, 11, 2.28], [2057, 3, 7, 4.35], [7084, 3, 7, 2.51], [11919, 1, 7, 1.14], [411, 2, 7, 2.43], [6097, 80, 7, 1.39], [11089, 1, 9, 2.25], [7886, 4, 9, 0.87], [3893, 1, 7, 4.23], [1050, 2, 7, 1.7], [7036, 1, 7, 1.74], [7707, 2, 7, 2.41], [563, 2, 7, 1.19], [3891, 1, 7, 3.1], [6494, 1, 7, 0.9], [6630, 3, 7, 3.8], [192, 3, 26, 4.63], [21793, 1, 8, 3.39], [1243, 2, 7, 2.33], [8274, 3, 7, 1.6], [7708, 2, 9, 3.71], [2912, 1, 7, 1.73], [13023, 3, 8, 0.8], [11581, 29, 7, 2.14], [3889, 1, 7, 4.23], [9126, 1, 7, 3.31], [159, 3, 9, 1.18], [13033, 3, 7, 1.68], [11490, 1, 7, 1.41], [5208, 3, 11, 3.72], [1049, 2, 7, 0.69], [12229, 2, 7, 1.12], [5940, 3, 7, 1.88], [3495, 3, 21, 2.66], [12349, 1, 7, 4.12], [22558, 3, 7, 4.63], [5165, 1, 7, 1.67], [2331, 1, 7, 3.54], [201, 3, 7, 1.66], [83, 2, 7, 1.93], [332, 2, 7, 0.94], [229, 1, 7, 2.59], [214, 3, 14, 3.19], [951, 4, 7, 3.48], [1309, 1, 7, 1.77], [6496, 1, 7, 4.02], [247, 1, 7, 4.64], [2805, 137, 10, 4.95], [5812, 3, 7, 2.49], [7885, 4, 7, 1.08], [21269, 3, 7, 5.0], [215, 4, 7, 4.38], [9690, 1, 7, 2.38], [942, 3, 7, 2.26], [8898, 3, 7, 3.25], [335, 3, 21, 2.55], [20555, 2, 7, 0.85], [11914, 1, 7, 1.66], [10406, 10, 12, 3.14], [1703, 2, 7, 4.23], [9827, 3, 7, 0.75], [4940, 1, 9, 0.81], [23961, 3, 7, 5.0], [8635, 3, 7, 1.1], [5811, 3, 8, 2.39], [24257, 1, 7, 4.0], [11770, 1, 7, 4.83], [9491, 21, 15, 2.71], [186, 3, 15, 2.26], [3934, 5, 12, 2.71], [2057, 3, 185, 5.34], [7084, 3, 137, 3.82], [411, 2, 109, 3.78], [6097, 80, 73, 2.7], [11089, 1, 182, 3.56], [7886, 4, 38, 2.3], [3893, 1, 126, 5.54], [1050, 2, 30, 2.45], [7036, 1, 136, 3.05], [7707, 2, 179, 3.97], [563, 2, 74, 2.62], [3891, 1, 126, 4.41], [6494, 1, 55, 2.21], [6630, 3, 99, 5.11], [192, 3, 1406, 5.93], [21793, 1, 254, 4.71], [1243, 2, 100, 4.36], [7708, 2, 187, 5.02], [2912, 1, 19, 2.73], [13023, 3, 629, 2.11], [11581, 29, 64, 3.45], [3889, 1, 126, 5.54], [9126, 1, 73, 4.63], [159, 3, 754, 2.48], [13033, 3, 626, 3.0], [11490, 1, 115, 2.72], [5208, 3, 521, 5.04], [1049, 2, 119, 2.0], [12229, 2, 154, 3.4], [5940, 3, 261, 3.19], [3495, 3, 1026, 3.97], [12349, 1, 638, 5.43], [22558, 3, 481, 5.94], [5165, 1, 51, 2.98], [2331, 1, 123, 4.86], [201, 3, 301, 2.97], [332, 2, 78, 2.25], [229, 1, 87, 3.91], [951, 4, 99, 4.79], [1309, 1, 55, 3.08], [6496, 1, 42, 5.33], [247, 1, 92, 5.95], [2805, 137, 179, 6.0], [5812, 3, 595, 5.03], [7885, 4, 37, 2.14], [21269, 3, 299, 6.0], [215, 4, 39, 5.69], [9690, 1, 79, 3.69], [942, 3, 314, 3.57], [8898, 3, 284, 4.56], [335, 3, 344, 3.3], [20555, 2, 61, 2.16], [11914, 1, 90, 2.97], [1703, 2, 166, 5.54], [9827, 3, 89, 2.18], [4940, 1, 129, 2.12], [23961, 3, 299, 6.0], [5811, 3, 623, 3.7], [24257, 1, 143, 5.31], [11770, 1, 216, 6.0], [9491, 21, 2235, 4.0], [186, 3, 699, 3.58], [3934, 5, 554, 4.02]]</t>
-  </si>
-  <si>
-    <t>[[589, 2, 9, 1.0], [141, 2, 7, 1.09], [2327, 2, 9, 1.37], [2778, 2, 14, 1.08], [6936, 2, 13, 3.9], [362, 2, 7, 1.94], [326, 2, 7, 1.25], [305, 2, 7, 2.43], [205, 2, 7, 0.9], [2775, 2, 7, 1.08], [1446, 2, 7, 3.45], [8649, 2, 7, 2.82], [8853, 2, 13, 2.03], [593, 2, 9, 1.55], [206, 2, 7, 2.57], [3840, 1, 7, 0.77], [11581, 29, 7, 1.56], [1429, 2, 7, 3.54], [523, 2, 7, 1.49], [21793, 1, 7, 3.22], [413, 1, 7, 1.81], [412, 1, 7, 2.98], [5165, 1, 7, 2.56], [1124, 2, 7, 2.69], [159, 3, 8, 0.78], [7036, 1, 7, 3.2], [615, 2, 7, 0.81], [201, 3, 14, 3.52], [8089, 1, 7, 1.87], [248, 1, 7, 0.92], [145, 2, 7, 2.73], [6952, 1, 14, 4.0], [345, 3, 9, 1.93], [6097, 80, 9, 4.75], [146, 2, 7, 1.5], [10993, 2, 9, 1.41], [2050, 3, 7, 2.02], [24664, 2, 35, 1.7], [144, 2, 7, 1.72], [2055, 3, 7, 1.23], [7005, 1, 7, 1.58], [2912, 1, 7, 2.36], [11770, 1, 7, 3.16], [3891, 1, 7, 1.26], [2057, 3, 7, 0.89], [432, 3, 7, 3.18], [997, 2, 7, 1.91], [998, 2, 7, 1.56], [6158, 2, 7, 0.69], [3893, 1, 7, 1.42], [6097, 29, 9, 5.0], [5165, 2, 12, 1.71], [12870, 1, 7, 2.29], [2424, 80, 7, 3.39], [10149, 3, 24, 1.73], [11772, 1, 7, 4.11], [6098, 80, 11, 4.2], [20927, 1, 7, 2.14], [9372, 1, 7, 1.89], [7885, 4, 9, 1.83], [11089, 1, 7, 2.01], [10574, 3, 8, 1.72], [5208, 3, 9, 2.83], [1492, 1, 7, 1.33], [3334, 5, 7, 2.91], [4032, 29, 7, 1.83], [346, 3, 9, 2.76], [11671, 1, 7, 3.96], [22316, 3, 7, 0.96], [13028, 3, 9, 4.04], [1519, 3, 24, 0.67], [3576, 25, 7, 3.64], [1490, 1, 7, 1.39], [12304, 1, 7, 3.69], [3889, 1, 7, 2.23], [2912, 2, 8, 2.37], [11583, 29, 9, 0.79], [13034, 3, 7, 4.36], [972, 3, 7, 2.36], [214, 3, 15, 1.16], [5151, 2, 7, 0.87], [229, 1, 7, 4.72], [11426, 25, 7, 2.5], [161, 3, 10, 3.56], [346, 1, 7, 2.76], [2331, 1, 7, 3.54], [5812, 3, 10, 4.66], [11490, 1, 7, 1.1], [8677, 3, 8, 2.09], [9289, 29, 7, 2.51], [1701, 2, 7, 3.01], [13893, 2, 7, 3.45], [75, 2, 7, 1.03], [10, 2, 9, 0.69], [1309, 1, 7, 0.79], [2805, 137, 7, 3.35], [3575, 25, 7, 2.14], [2160, 68, 7, 1.96], [11404, 2, 7, 0.87], [12764, 2, 9, 1.71], [13023, 3, 10, 3.3], [159, 1, 7, 0.87], [4253, 1, 7, 2.18], [5209, 3, 7, 2.83], [9069, 1, 7, 1.69], [957, 2, 7, 2.0], [6494, 1, 7, 0.89], [2438, 2, 8, 2.42], [9971, 2, 7, 1.33], [11813, 1, 7, 3.62], [14037, 3, 7, 2.34], [192, 3, 13, 3.54], [9967, 2, 7, 1.33], [4033, 29, 7, 3.15], [9491, 21, 13, 2.86], [159, 16, 7, 0.9], [24257, 1, 7, 2.83], [8943, 3, 7, 1.0], [2878, 1, 7, 2.75], [11150, 2, 8, 0.79], [5584, 3, 7, 4.0], [9964, 2, 7, 2.21], [105, 3, 7, 2.08], [22317, 3, 8, 1.1], [8283, 2, 8, 3.44], [10609, 1, 7, 1.79], [9965, 2, 7, 1.33], [10407, 10, 12, 3.01], [4076, 3, 7, 3.37], [4586, 10, 21, 1.75], [3495, 3, 15, 2.82], [335, 3, 20, 1.54], [14041, 3, 7, 0.94], [24258, 1, 7, 4.24], [7324, 1, 7, 1.59], [9910, 25, 7, 0.71], [7567, 3, 7, 2.04], [3576, 25, 36, 4.55], [1490, 1, 60, 2.62], [12304, 1, 128, 4.92], [3889, 1, 132, 3.46], [2912, 2, 447, 3.6], [11583, 29, 60, 2.07], [13034, 3, 599, 5.6], [972, 3, 599, 3.6], [214, 3, 764, 2.4], [5151, 2, 25, 2.22], [229, 1, 86, 5.95], [11426, 25, 120, 3.73], [161, 3, 843, 4.8], [2331, 1, 137, 4.78], [5812, 3, 593, 5.99], [11490, 1, 90, 2.27], [8677, 3, 346, 3.32], [9289, 29, 75, 3.74], [1701, 2, 176, 4.24], [13893, 2, 320, 4.68], [75, 2, 147, 2.27], [1309, 1, 61, 2.02], [2805, 137, 212, 4.58], [3575, 25, 119, 3.37], [2160, 68, 156, 3.19], [11404, 2, 124, 2.1], [12764, 2, 784, 2.94], [13023, 3, 599, 4.52], [159, 1, 47, 2.1], [4253, 1, 197, 3.42], [5209, 3, 328, 3.92], [9069, 1, 124, 2.92], [957, 2, 23, 3.18], [6494, 1, 61, 2.12], [2438, 2, 743, 3.66], [9971, 2, 320, 2.57], [11813, 1, 346, 4.86], [14037, 3, 399, 3.57], [192, 3, 1598, 4.78], [9967, 2, 320, 2.57], [4033, 29, 117, 4.38], [9491, 21, 2310, 4.07], [159, 16, 94, 2.13], [24257, 1, 144, 4.06], [11150, 2, 415, 2.02], [5584, 3, 278, 5.23], [9964, 2, 320, 3.44], [105, 3, 258, 3.31], [22317, 3, 342, 2.34], [8283, 2, 552, 4.68], [10609, 1, 337, 3.02], [9965, 2, 320, 2.57], [4076, 3, 235, 4.6], [4586, 10, 1559, 3.0], [3495, 3, 1140, 4.07], [335, 3, 1528, 2.77], [14041, 3, 818, 2.16], [24258, 1, 160, 5.47], [7324, 1, 71, 2.82], [9910, 25, 26, 1.62], [7567, 3, 82, 3.27]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 15, 2.66], [305, 2, 7, 1.49], [6935, 2, 28, 4.58], [141, 2, 9, 2.12], [2049, 3, 16, 0.5], [12721, 2, 10, 1.78], [205, 2, 7, 0.71], [130, 1, 9, 1.26], [589, 2, 18, 0.5], [151, 1, 7, 1.08], [1776, 1, 7, 1.94], [362, 2, 11, 2.59], [146, 2, 9, 1.44], [145, 2, 7, 0.91], [593, 2, 11, 2.08], [8915, 2, 12, 0.73], [2328, 2, 9, 1.01], [1777, 1, 7, 2.22], [6936, 2, 12, 2.57], [3, 2, 7, 2.22], [22247, 2, 9, 2.35], [8675, 2, 10, 2.17], [248, 1, 7, 0.71], [1007, 2, 12, 0.66], [2778, 2, 7, 1.63], [88, 10, 20, 1.98], [10, 2, 17, 1.8], [8677, 3, 8, 3.19], [412, 1, 7, 2.33], [10149, 3, 25, 3.26], [2054, 3, 11, 1.86], [11681, 2, 11, 2.92], [10825, 21, 13, 1.81], [13028, 3, 7, 1.29], [361, 2, 7, 1.5], [413, 1, 7, 2.79], [7004, 1, 7, 1.24], [2055, 3, 7, 1.92], [2057, 3, 7, 3.71], [8676, 2, 7, 1.94], [411, 2, 7, 1.42], [410, 1, 7, 1.42], [308, 1, 7, 2.44], [61, 3, 7, 2.15], [6158, 2, 12, 2.62], [432, 3, 7, 2.04], [1124, 2, 12, 0.75], [45, 2, 7, 3.67], [7005, 1, 7, 1.24], [5081, 2, 12, 1.3], [94, 4, 7, 3.7], [167, 3, 11, 2.7], [9827, 3, 7, 1.13], [5812, 3, 10, 3.41], [3495, 3, 26, 2.72], [168, 3, 9, 2.11], [3893, 1, 7, 1.02], [12870, 1, 11, 5.0], [3889, 1, 7, 1.02], [10574, 3, 10, 3.85], [3891, 1, 7, 1.02], [8651, 2, 7, 2.79], [335, 3, 22, 3.03], [6097, 80, 7, 4.69], [95, 3, 19, 0.93], [20256, 2, 7, 1.11], [6098, 29, 11, 4.26], [11737, 2, 7, 1.87], [1490, 1, 7, 1.79], [214, 3, 15, 0.98], [346, 1, 9, 1.36], [998, 2, 9, 3.76], [20927, 1, 7, 2.0], [9069, 1, 11, 2.03], [20498, 1, 7, 2.94], [1622, 1, 9, 1.74], [8898, 3, 7, 4.48], [6098, 80, 9, 4.26], [9760, 29, 7, 1.26], [1070, 7, 13, 2.71], [14017, 3, 7, 1.29], [9829, 3, 7, 3.0], [997, 2, 9, 2.59], [13260, 29, 7, 2.65], [22554, 10, 18, 0.87], [13034, 3, 13, 2.73], [1243, 2, 7, 1.52], [20498, 3, 12, 3.24], [346, 3, 8, 0.92], [345, 3, 7, 1.12], [336, 15, 7, 0.67], [5513, 2, 7, 1.1], [22317, 3, 14, 1.85], [996, 2, 7, 4.42], [5946, 1, 7, 1.02], [5811, 3, 7, 3.88], [5813, 3, 7, 2.03], [9691, 1, 7, 3.2], [5086, 1, 11, 3.69], [8945, 3, 8, 1.48], [995, 2, 9, 4.24], [952, 4, 7, 5.0], [11085, 2, 7, 0.86], [1080, 3, 7, 1.46], [1413, 15, 7, 0.75], [8557, 3, 9, 2.11], [3049, 3, 7, 4.36], [20486, 3, 12, 4.12], [9082, 3, 24, 2.75], [2424, 80, 7, 4.26], [4076, 3, 7, 5.0], [1703, 2, 7, 2.97], [215, 4, 7, 5.0], [9081, 3, 15, 3.06], [823, 1, 7, 0.92], [20486, 1, 7, 2.87], [8274, 3, 7, 1.27], [8943, 3, 7, 1.22], [13023, 3, 8, 2.86], [2854, 21, 19, 1.1], [11510, 3, 12, 2.73], [23611, 3, 7, 3.74], [470, 1, 7, 0.71], [14018, 3, 7, 0.81], [6497, 1, 7, 2.18], [8104, 1, 7, 4.2], [3047, 3, 7, 2.18], [18, 1, 7, 0.73], [2878, 1, 9, 3.76], [1414, 15, 7, 0.56], [20969, 3, 7, 2.16], [12923, 1, 7, 0.96], [10529, 29, 8, 2.79], [18964, 1, 7, 1.73], [13484, 1, 7, 4.31], [10780, 10, 7, 4.39], [214, 3, 574, 2.12], [346, 1, 152, 2.98], [998, 2, 233, 4.71], [20927, 1, 26, 2.57], [9069, 1, 42, 2.6], [20498, 1, 87, 4.35], [1622, 1, 102, 2.69], [8898, 3, 247, 6.0], [9760, 29, 68, 2.21], [1070, 7, 522, 3.67], [14017, 3, 176, 3.64], [9829, 3, 71, 3.95], [997, 2, 233, 4.44], [13260, 29, 64, 3.6], [22554, 10, 336, 2.02], [13034, 3, 520, 4.92], [1243, 2, 92, 2.47], [20498, 3, 522, 4.44], [346, 3, 641, 1.86], [345, 3, 315, 2.07], [5513, 2, 83, 2.05], [22317, 3, 280, 3.27], [996, 2, 233, 6.0], [5946, 1, 109, 2.17], [5811, 3, 615, 4.82], [5813, 3, 596, 4.04], [9691, 1, 66, 5.06], [5086, 1, 163, 4.63], [8945, 3, 612, 2.42], [995, 2, 233, 6.0], [952, 4, 64, 5.95], [11085, 2, 516, 1.8], [1080, 3, 125, 2.41], [1413, 15, 87, 2.02], [8557, 3, 176, 3.93], [3049, 3, 135, 6.0], [20486, 3, 522, 5.68], [9082, 3, 2550, 3.67], [2424, 80, 158, 5.21], [4076, 3, 177, 6.0], [1703, 2, 144, 4.62], [215, 4, 36, 6.0], [9081, 3, 457, 5.21], [823, 1, 42, 1.87], [20486, 1, 87, 5.27], [13023, 3, 522, 4.84], [2854, 21, 985, 2.75], [11510, 3, 578, 3.88], [23611, 3, 306, 4.7], [14018, 3, 206, 1.75], [6497, 1, 34, 3.84], [8104, 1, 186, 5.14], [3047, 3, 239, 3.13], [18, 1, 51, 1.68], [2878, 1, 41, 4.65], [1414, 15, 87, 2.72], [20969, 3, 522, 3.32], [12923, 1, 36, 1.91], [10529, 29, 38, 3.74], [18964, 1, 70, 2.68], [13484, 1, 182, 5.25], [10780, 10, 387, 5.34]]</t>
+    <t>21/12/2025 14:34</t>
+  </si>
+  <si>
+    <t>27/12/2025 23:59</t>
+  </si>
+  <si>
+    <t>[[305, 2, 4, 0.35], [8672, 2, 6, 0.73], [3, 2, 4, 0.72], [589, 2, 8, 0.2], [130, 1, 5, 0.6], [2049, 3, 11, 0.63], [205, 2, 4, 0.2], [144, 2, 4, 0.74], [12721, 2, 6, 0.97], [75, 2, 6, 0.87], [145, 2, 4, 0.27], [1776, 1, 4, 0.61], [8915, 2, 8, 0.2], [593, 2, 6, 0.59], [146, 2, 4, 0.91], [151, 1, 4, 0.2], [2778, 2, 8, 0.2], [1777, 1, 4, 0.74], [20252, 2, 4, 0.46], [8648, 2, 5, 1.27], [206, 2, 4, 0.83], [6936, 2, 8, 0.92], [2328, 2, 4, 0.2], [5151, 2, 4, 0.2], [88, 10, 10, 0.45], [141, 2, 4, 1.31], [8675, 2, 6, 0.96], [74, 1, 4, 1.53], [83, 2, 4, 0.44], [7004, 1, 4, 1.74], [1492, 1, 4, 0.42], [2054, 3, 6, 0.53], [1446, 2, 4, 1.55], [10825, 21, 11, 1.04], [362, 2, 4, 1.32], [2057, 3, 6, 0.47], [1007, 2, 5, 0.2], [345, 3, 6, 0.32], [432, 3, 6, 0.62], [7005, 1, 4, 1.39], [22247, 2, 5, 0.95], [11681, 2, 5, 0.94], [201, 3, 6, 0.21], [57, 1, 4, 0.44], [410, 1, 4, 1.75], [3889, 1, 4, 0.2], [308, 1, 6, 0.49], [10149, 3, 17, 0.99], [12870, 1, 4, 2.08], [1124, 2, 8, 0.2], [7036, 1, 4, 0.93], [35, 1, 4, 0.83], [167, 3, 5, 1.4], [9827, 3, 4, 1.62], [5081, 2, 6, 0.2], [8677, 3, 7, 1.3], [94, 4, 4, 1.82], [411, 2, 4, 0.71], [1504, 2, 5, 0.2], [3891, 1, 4, 0.2], [79, 1, 4, 0.24], [168, 3, 5, 1.23], [8676, 2, 4, 0.73], [3893, 1, 4, 0.2], [5812, 3, 6, 0.8], [9760, 29, 4, 0.2], [23, 1, 4, 1.51], [1490, 1, 5, 0.23], [412, 1, 4, 1.64], [3980, 4, 4, 1.39], [20927, 1, 4, 1.67], [45, 2, 4, 0.64], [361, 2, 4, 1.31], [1767, 25, 5, 0.59], [5208, 3, 6, 0.47], [1622, 1, 4, 1.13], [95, 3, 18, 0.3], [9069, 1, 4, 0.42], [8651, 2, 4, 1.43], [335, 3, 13, 0.22], [25, 1, 4, 1.51], [214, 3, 11, 0.2], [10574, 3, 5, 0.46], [413, 1, 5, 1.82], [2049, 1, 4, 0.2], [34, 1, 4, 1.85], [998, 2, 4, 1.47], [856, 1, 4, 0.2], [3495, 3, 15, 1.31], [8898, 3, 7, 0.75], [9691, 1, 4, 2.02], [1766, 25, 4, 1.62], [1070, 7, 10, 0.47], [11116, 1, 5, 2.41], [20498, 1, 4, 0.23], [38, 1, 4, 2.1], [997, 2, 4, 0.86], [5946, 1, 4, 0.78], [14017, 3, 5, 0.54], [1413, 15, 4, 0.43], [974, 3, 5, 1.13], [9829, 3, 4, 1.42], [152, 21, 4, 0.97], [1091, 1, 4, 0.53], [20498, 3, 8, 0.58], [39, 1, 4, 2.1], [82, 2, 4, 1.43], [14037, 3, 5, 0.2], [9372, 1, 4, 1.08], [5209, 3, 5, 0.75], [1080, 3, 5, 0.2], [5086, 1, 4, 2.44], [996, 2, 5, 1.47], [1767, 2, 4, 0.59], [3048, 3, 4, 1.24], [9828, 3, 4, 1.77], [972, 3, 6, 0.91], [13260, 29, 4, 0.98], [24, 1, 4, 1.32], [4203, 1, 4, 0.3], [5513, 2, 5, 0.5], [10780, 10, 4, 1.3], [5813, 3, 5, 1.52], [3981, 3, 12, 1.42], [202, 2, 4, 1.59], [8945, 3, 5, 1.51], [952, 4, 5, 2.41], [36, 1, 4, 2.1], [336, 15, 5, 0.2], [2878, 1, 4, 0.54], [13034, 3, 5, 1.08], [3900, 3, 4, 0.49], [23611, 3, 5, 2.51], [995, 2, 4, 1.02], [6497, 1, 4, 0.67], [14018, 3, 4, 0.46], [24257, 1, 4, 1.29], [9082, 3, 18, 0.83], [170, 3, 4, 1.24], [305, 2, 158, 2.63], [8672, 2, 318, 4.0], [3, 2, 158, 3.25], [589, 2, 156, 2.16], [205, 2, 122, 3.04], [144, 2, 171, 2.74], [12721, 2, 311, 4.5], [75, 2, 166, 4.23], [145, 2, 163, 2.32], [1776, 1, 122, 3.94], [8915, 2, 118, 2.0], [593, 2, 194, 3.27], [146, 2, 181, 2.81], [151, 1, 75, 2.2], [2778, 2, 158, 3.87], [1777, 1, 122, 4.16], [20252, 2, 111, 1.96], [8648, 2, 226, 6.0], [6936, 2, 292, 5.28], [2328, 2, 171, 4.1], [5151, 2, 27, 2.22], [88, 10, 643, 3.3], [141, 2, 174, 4.08], [8675, 2, 335, 2.83], [74, 1, 223, 6.0], [83, 2, 60, 2.27], [1492, 1, 45, 1.88], [2054, 3, 532, 3.34], [10825, 21, 732, 4.24], [362, 2, 158, 3.67], [2057, 3, 532, 3.69], [1007, 2, 289, 2.04], [345, 3, 340, 3.85], [432, 3, 336, 3.95], [7005, 1, 88, 3.75], [22247, 2, 311, 5.87], [11681, 2, 323, 4.87], [201, 3, 340, 3.85], [57, 1, 95, 2.41], [3889, 1, 138, 3.61], [308, 1, 188, 4.48], [10149, 3, 996, 4.45], [12870, 1, 165, 6.0], [1124, 2, 210, 3.48], [7036, 1, 146, 4.55], [35, 1, 123, 4.72], [167, 3, 77, 3.69], [9827, 3, 59, 4.05], [5081, 2, 216, 3.34], [8677, 3, 331, 4.07], [411, 2, 117, 2.44], [1504, 2, 221, 3.54], [3891, 1, 138, 4.49], [79, 1, 51, 2.26], [168, 3, 205, 4.59], [8676, 2, 318, 3.02], [3893, 1, 138, 4.45], [5812, 3, 608, 4.18], [9760, 29, 80, 2.67], [1490, 1, 55, 2.24], [412, 1, 94, 4.57]]</t>
+  </si>
+  <si>
+    <t>[[305, 2, 4, 0.45], [6935, 2, 6, 1.69], [2778, 2, 5, 0.2], [144, 2, 4, 0.29], [8915, 2, 5, 0.2], [6936, 2, 5, 1.66], [2775, 2, 4, 1.06], [205, 2, 4, 0.92], [8650, 2, 4, 1.77], [593, 2, 6, 0.2], [145, 2, 4, 0.2], [146, 2, 5, 0.91], [326, 2, 4, 0.39], [7036, 1, 4, 1.78], [5493, 2, 4, 0.38], [88, 10, 8, 0.78], [141, 2, 5, 0.79], [7004, 1, 4, 1.34], [1446, 2, 4, 0.2], [1124, 2, 5, 0.32], [9760, 29, 4, 0.98], [206, 2, 4, 0.2], [8853, 2, 4, 1.29], [8672, 2, 4, 1.69], [362, 2, 4, 1.56], [142, 2, 4, 0.92], [11685, 2, 4, 0.46], [2912, 1, 4, 1.9], [7886, 4, 5, 0.2], [8649, 2, 4, 0.75], [5165, 1, 4, 1.61], [12870, 1, 6, 1.68], [1622, 1, 5, 0.88], [2055, 3, 6, 0.56], [417, 2, 4, 0.92], [7573, 1, 10, 2.71], [7084, 3, 4, 1.34], [21793, 1, 4, 0.86], [7885, 4, 5, 0.74], [2054, 3, 6, 2.22], [523, 2, 4, 0.55], [10, 2, 5, 0.61], [9372, 1, 4, 1.24], [3891, 1, 4, 0.38], [75, 2, 5, 1.25], [10149, 3, 19, 1.22], [5208, 3, 7, 0.19], [9491, 21, 10, 0.83], [20927, 1, 4, 1.51], [35, 1, 5, 1.79], [997, 2, 4, 1.26], [12721, 2, 7, 1.71], [5165, 2, 5, 0.65], [3, 2, 6, 0.93], [33, 1, 4, 0.75], [998, 2, 4, 0.95], [94, 4, 4, 0.5], [7887, 4, 4, 0.58], [22247, 2, 4, 1.39], [996, 2, 4, 0.95], [972, 3, 6, 0.75], [34, 1, 4, 1.57], [6158, 2, 8, 0.2], [2805, 137, 4, 1.6], [2912, 2, 7, 1.9], [2424, 80, 4, 0.83], [38, 1, 4, 0.75], [8104, 1, 4, 1.55], [2336, 3, 5, 0.5], [8898, 3, 4, 0.75], [9690, 1, 4, 0.38], [12212, 29, 6, 0.2], [24257, 1, 5, 0.77], [39, 1, 4, 0.75], [11952, 1, 4, 0.82], [7567, 3, 4, 1.58], [2424, 29, 5, 0.91], [1414, 15, 4, 0.44], [192, 3, 11, 1.07], [8676, 2, 4, 1.69], [11770, 1, 4, 1.36], [3495, 3, 15, 1.25], [202, 2, 4, 0.49], [13928, 1, 4, 1.33], [3048, 3, 6, 0.92], [4032, 29, 4, 2.74], [23961, 3, 4, 1.88], [11490, 1, 4, 0.44], [161, 3, 6, 1.29], [5946, 1, 4, 0.35], [11772, 1, 4, 0.93], [1703, 2, 4, 0.42], [10407, 10, 7, 1.13], [74, 1, 4, 1.99], [10410, 10, 6, 1.25], [13023, 3, 5, 1.51], [1274, 1, 5, 0.2], [1519, 3, 10, 0.22], [24258, 1, 4, 1.09], [1523, 1, 4, 0.56], [21269, 3, 4, 2.75], [2331, 1, 4, 1.07], [11236, 2, 4, 0.62], [4253, 1, 4, 0.2], [5164, 1, 4, 0.64], [4076, 3, 4, 1.59], [3430, 15, 4, 0.67], [12764, 2, 5, 0.35], [6097, 80, 4, 0.71], [972, 1, 4, 0.84], [214, 3, 15, 0.2], [6097, 29, 4, 0.71], [10780, 10, 4, 1.03], [1080, 3, 4, 1.4], [8674, 2, 4, 0.72], [3047, 3, 5, 1.64], [13893, 2, 4, 1.17], [9081, 3, 7, 0.5], [11404, 2, 4, 0.42], [10408, 10, 5, 0.59], [8677, 3, 4, 1.3], [13034, 3, 4, 1.52], [3576, 29, 4, 1.33], [1243, 2, 4, 0.51], [12662, 1, 4, 0.53], [13264, 29, 4, 0.47], [2436, 4, 4, 0.4], [20486, 3, 4, 1.81], [6497, 1, 4, 0.97], [7704, 2, 4, 0.45], [13928, 2, 4, 1.33], [3334, 5, 4, 1.63], [11813, 1, 4, 0.88], [45, 2, 4, 0.36], [1277, 1, 4, 0.98], [305, 2, 163, 3.77], [6935, 2, 311, 6.0], [2778, 2, 171, 4.06], [144, 2, 168, 2.49], [8915, 2, 210, 3.09], [6936, 2, 311, 6.0], [2775, 2, 181, 3.24], [8650, 2, 232, 4.61], [593, 2, 236, 3.55], [145, 2, 168, 3.13], [146, 2, 168, 2.85], [326, 2, 97, 2.47], [7036, 1, 142, 6.0], [5493, 2, 126, 1.93], [88, 10, 330, 4.14], [141, 2, 170, 3.86], [1446, 2, 166, 3.09], [1124, 2, 195, 3.04], [9760, 29, 41, 2.96], [206, 2, 118, 3.28], [8853, 2, 328, 3.76], [8672, 2, 328, 4.45], [362, 2, 49, 3.89], [142, 2, 170, 3.73], [11685, 2, 299, 3.21], [2912, 1, 52, 4.93], [7886, 4, 35, 1.47], [8649, 2, 258, 4.24], [5165, 1, 52, 4.3], [12870, 1, 152, 6.0], [1622, 1, 114, 2.83], [2055, 3, 518, 3.08], [417, 2, 170, 3.47], [7573, 1, 379, 6.0], [7084, 3, 148, 4.75], [21793, 1, 269, 3.15], [2054, 3, 109, 4.31], [523, 2, 170, 2.64], [10, 2, 114, 3.26], [9372, 1, 272, 3.59], [3891, 1, 130, 2.66], [75, 2, 159, 5.0], [10149, 3, 986, 4.61], [5208, 3, 618, 2.62], [9491, 21, 2565, 2.94], [35, 1, 115, 4.73], [997, 2, 277, 3.63], [12721, 2, 309, 5.44], [5165, 2, 439, 3.24], [3, 2, 128, 4.46], [33, 1, 127, 3.07], [998, 2, 277, 3.03], [94, 4, 143, 2.16], [22247, 2, 309, 4.22], [996, 2, 277, 3.03], [972, 3, 652, 4.02], [34, 1, 115, 4.7], [6158, 2, 285, 3.14], [2805, 137, 200, 4.35], [2912, 2, 415, 4.94], [2424, 80, 199, 2.8], [38, 1, 127, 3.07], [8104, 1, 226, 4.27], [2336, 3, 676, 2.59], [8898, 3, 339, 2.63]]</t>
+  </si>
+  <si>
+    <t>[[326, 2, 5, 0.71], [11685, 2, 4, 1.87], [144, 2, 5, 0.8], [11681, 2, 5, 1.37], [589, 2, 5, 0.2], [2327, 2, 4, 0.49], [205, 2, 5, 0.37], [593, 2, 6, 0.27], [141, 2, 5, 0.53], [305, 2, 4, 0.51], [8915, 2, 5, 0.78], [8650, 2, 4, 1.13], [2328, 2, 4, 0.2], [151, 1, 4, 0.36], [6936, 2, 8, 1.85], [2778, 2, 6, 0.2], [2049, 3, 7, 0.47], [146, 2, 6, 0.57], [206, 2, 5, 0.71], [88, 10, 15, 1.4], [7004, 1, 4, 1.62], [9507, 3, 4, 0.2], [615, 2, 4, 0.37], [7036, 1, 4, 1.98], [145, 2, 5, 0.66], [1446, 2, 4, 0.65], [417, 2, 4, 0.4], [8853, 2, 6, 1.7], [362, 2, 4, 1.56], [248, 1, 4, 0.37], [523, 2, 6, 0.28], [2055, 3, 6, 2.49], [10993, 2, 4, 0.26], [142, 2, 4, 0.48], [75, 2, 5, 0.75], [616, 2, 4, 0.5], [3840, 1, 4, 0.39], [11737, 2, 4, 0.66], [2050, 3, 4, 1.39], [12870, 1, 4, 0.7], [12350, 1, 4, 1.03], [2054, 3, 4, 1.39], [2057, 3, 5, 2.02], [7084, 3, 4, 0.87], [13028, 3, 4, 0.62], [20927, 1, 4, 1.36], [7005, 1, 5, 0.92], [3, 2, 4, 0.27], [3982, 3, 10, 0.59], [10, 2, 5, 0.2], [997, 2, 4, 0.89], [94, 4, 4, 0.91], [21793, 1, 4, 1.93], [61, 3, 4, 2.27], [7885, 4, 6, 0.52], [3891, 1, 4, 0.2], [996, 2, 4, 1.05], [6158, 2, 4, 0.88], [998, 2, 4, 0.57], [8672, 2, 5, 1.45], [5165, 1, 4, 0.65], [9491, 21, 10, 1.24], [11739, 2, 4, 1.07], [2912, 1, 4, 1.89], [972, 3, 5, 0.93], [5165, 2, 5, 0.65], [7886, 4, 4, 0.47], [346, 3, 4, 0.46], [3980, 4, 4, 1.34], [98, 11, 10, 0.68], [10388, 2, 4, 1.26], [411, 2, 4, 0.64], [1492, 1, 4, 0.47], [346, 1, 4, 0.2], [7573, 1, 4, 0.97], [8677, 3, 4, 1.96], [83, 2, 4, 0.67], [5208, 3, 4, 1.03], [7567, 3, 4, 0.71], [410, 1, 4, 0.44], [22316, 3, 4, 0.51], [995, 2, 4, 0.93], [3981, 3, 13, 1.15], [9081, 3, 7, 0.78], [13928, 1, 4, 0.82], [22247, 2, 5, 1.07], [10386, 2, 4, 0.76], [9372, 1, 4, 1.12], [336, 15, 4, 0.55], [11770, 1, 4, 1.14], [308, 1, 4, 0.8], [10780, 10, 4, 1.77], [1622, 1, 4, 0.83], [11953, 1, 4, 0.51], [161, 3, 5, 1.29], [2912, 2, 5, 1.89], [23611, 3, 5, 1.1], [9082, 3, 17, 1.08], [5946, 1, 4, 0.85], [345, 3, 4, 0.5], [22317, 3, 4, 0.51], [192, 3, 13, 0.72], [11116, 1, 4, 1.67], [229, 1, 4, 1.14], [24257, 1, 5, 2.5], [37, 1, 5, 1.5], [82, 2, 4, 0.51], [972, 1, 5, 0.92], [11767, 1, 4, 0.66], [12271, 2, 4, 1.13], [7704, 2, 4, 1.7], [34, 1, 5, 1.42], [14037, 3, 4, 1.22], [8104, 1, 4, 1.56], [10410, 10, 6, 1.29], [10407, 10, 6, 1.33], [11085, 2, 4, 1.27], [11404, 2, 4, 0.42], [3048, 3, 4, 1.14], [10387, 2, 4, 0.79], [20498, 3, 5, 0.4], [74, 1, 4, 1.04], [38, 1, 4, 1.42], [1413, 15, 4, 0.4], [335, 3, 9, 0.49], [12721, 2, 4, 0.9], [2331, 1, 4, 1.09], [12338, 29, 4, 0.39], [215, 4, 4, 2.04], [4001, 3, 7, 0.94], [1523, 1, 4, 0.6], [4253, 1, 4, 0.88], [11510, 3, 5, 0.99], [8673, 2, 5, 2.14], [45, 2, 4, 1.17], [201, 3, 4, 0.5], [326, 2, 90, 2.75], [11685, 2, 256, 6.0], [144, 2, 156, 3.56], [11681, 2, 256, 6.0], [589, 2, 142, 2.68], [2327, 2, 164, 2.07], [205, 2, 112, 2.12], [593, 2, 210, 3.41], [141, 2, 158, 4.17], [305, 2, 152, 3.88], [8915, 2, 195, 2.5], [8650, 2, 229, 3.8], [2328, 2, 149, 2.19], [151, 1, 16, 1.32], [6936, 2, 284, 6.0], [2778, 2, 160, 4.01], [146, 2, 141, 3.93], [206, 2, 26, 2.95], [88, 10, 587, 3.79], [9507, 3, 206, 1.82], [615, 2, 118, 2.07], [7036, 1, 133, 5.22], [145, 2, 149, 3.12], [1446, 2, 156, 3.1], [417, 2, 158, 2.31], [8853, 2, 284, 5.32], [362, 2, 68, 3.95], [248, 1, 20, 1.55], [523, 2, 158, 4.0], [2055, 3, 466, 6.0], [10993, 2, 53, 2.36], [142, 2, 167, 2.05], [75, 2, 144, 3.51], [616, 2, 118, 2.09], [3840, 1, 83, 1.7], [11737, 2, 62, 2.4], [2050, 3, 436, 5.56], [12870, 1, 149, 4.81], [12350, 1, 656, 4.23], [2054, 3, 436, 5.56], [2057, 3, 466, 6.0], [7084, 3, 138, 2.8], [13028, 3, 144, 2.63], [20927, 1, 47, 3.63], [7005, 1, 80, 2.92], [3, 2, 117, 2.37], [3982, 3, 854, 2.36], [997, 2, 261, 2.84], [94, 4, 134, 2.88], [21793, 1, 262, 4.91], [61, 3, 99, 5.32], [3891, 1, 122, 2.25], [996, 2, 232, 4.4], [6158, 2, 281, 2.89], [998, 2, 261, 2.22], [8672, 2, 291, 5.33], [5165, 1, 51, 3.25], [9491, 21, 2313, 4.22], [11739, 2, 62, 3.19], [2912, 1, 48, 4.84], [972, 3, 643, 2.77], [5165, 2, 410, 3.24], [346, 3, 670, 2.0], [3980, 4, 519, 3.76]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 9, 0.22], [362, 2, 5, 0.45], [2049, 3, 12, 0.2], [589, 2, 8, 0.2], [3, 2, 4, 0.76], [75, 2, 5, 0.49], [141, 2, 5, 1.3], [8672, 2, 7, 0.72], [1776, 1, 4, 0.58], [130, 1, 4, 0.4], [205, 2, 4, 0.21], [8915, 2, 5, 0.39], [151, 1, 4, 0.4], [11681, 2, 5, 2.33], [2778, 2, 6, 0.2], [305, 2, 5, 0.49], [1777, 1, 5, 0.93], [6936, 2, 5, 1.02], [8648, 2, 5, 0.77], [593, 2, 7, 0.72], [990, 2, 4, 0.2], [88, 10, 12, 0.33], [83, 2, 4, 0.5], [1007, 2, 6, 0.37], [345, 3, 5, 0.21], [5151, 2, 4, 0.4], [412, 1, 4, 1.02], [361, 2, 4, 0.49], [201, 3, 6, 0.21], [22247, 2, 5, 1.22], [21793, 1, 4, 1.03], [10149, 3, 15, 1.56], [45, 2, 5, 1.12], [12721, 2, 6, 1.22], [7004, 1, 5, 0.72], [10825, 21, 8, 1.15], [2054, 3, 5, 1.33], [167, 3, 6, 1.09], [413, 1, 4, 1.7], [2057, 3, 5, 1.62], [308, 1, 5, 1.76], [5005, 1, 4, 0.48], [74, 1, 4, 0.84], [6158, 2, 7, 0.87], [168, 3, 4, 0.99], [1446, 2, 4, 0.52], [346, 1, 4, 0.48], [432, 3, 5, 0.39], [13028, 3, 6, 0.5], [10, 2, 6, 0.2], [7036, 1, 5, 1.96], [3495, 3, 17, 0.91], [12870, 1, 4, 2.58], [214, 3, 10, 0.42], [335, 3, 15, 0.67], [5081, 2, 5, 0.47], [79, 1, 4, 0.2], [5208, 3, 7, 1.75], [9827, 3, 4, 1.03], [410, 1, 4, 0.8], [3889, 1, 5, 0.2], [1492, 1, 4, 0.42], [95, 3, 13, 1.12], [5812, 3, 8, 0.95], [94, 4, 4, 2.26], [3893, 1, 5, 0.2], [13260, 29, 4, 1.1], [23, 1, 4, 1.51], [1504, 2, 5, 0.2], [7005, 1, 5, 0.74], [1490, 1, 4, 1.29], [411, 2, 4, 0.55], [10993, 2, 4, 0.42], [3891, 1, 4, 1.26], [25, 1, 4, 1.8], [998, 2, 4, 0.69], [1124, 2, 5, 0.54], [3980, 4, 4, 1.4], [21269, 3, 5, 3.75], [8651, 2, 4, 0.35], [10574, 3, 5, 0.42], [9691, 1, 4, 2.15], [5086, 1, 6, 1.36], [856, 1, 4, 0.2], [2878, 1, 4, 1.82], [997, 2, 6, 1.37], [5660, 2, 5, 2.62], [8676, 2, 5, 0.97], [11914, 1, 6, 0.2], [20927, 1, 4, 0.86], [192, 3, 13, 2.38], [9829, 3, 4, 1.31], [1703, 2, 5, 1.38], [5209, 3, 6, 1.73], [8674, 2, 4, 1.22], [1622, 1, 6, 0.88], [9081, 3, 7, 0.38], [952, 4, 4, 2.89], [20498, 1, 4, 0.93], [5513, 2, 4, 0.52], [1070, 7, 8, 1.39], [996, 2, 5, 1.12], [8898, 3, 7, 2.67], [14037, 3, 5, 0.47], [346, 3, 5, 0.46], [1091, 1, 4, 0.2], [12661, 1, 5, 2.6], [20498, 3, 8, 1.27], [1519, 3, 14, 0.22], [6097, 29, 4, 0.2], [27, 1, 4, 0.76], [8274, 3, 6, 1.09], [24, 1, 5, 1.85], [13034, 3, 6, 1.01], [22317, 3, 6, 0.51], [4203, 1, 6, 0.28], [10529, 29, 4, 1.44], [11490, 1, 4, 0.51], [1413, 15, 4, 0.62], [336, 15, 4, 0.2], [6097, 80, 4, 0.66], [24664, 2, 6, 1.37], [11767, 1, 5, 0.22], [23611, 3, 4, 1.3], [34, 1, 4, 2.06], [9082, 3, 18, 0.83], [2104, 3, 7, 1.63], [6098, 80, 4, 1.65], [66, 1, 4, 0.45], [11769, 1, 4, 0.22], [5811, 3, 4, 1.11], [10780, 10, 4, 2.53], [6098, 29, 4, 1.04], [38, 1, 4, 2.06], [39, 1, 4, 2.06], [66, 16, 4, 0.22], [2109, 3, 9, 0.2], [6935, 2, 297, 3.75], [362, 2, 133, 2.83], [2049, 3, 541, 2.4], [589, 2, 152, 1.9], [3, 2, 112, 3.42], [75, 2, 145, 4.14], [141, 2, 153, 3.64], [8672, 2, 280, 3.56], [1776, 1, 107, 3.72], [130, 1, 56, 1.97], [205, 2, 38, 3.04], [8915, 2, 201, 1.81], [151, 1, 46, 1.94], [2778, 2, 139, 3.71], [305, 2, 146, 3.28], [1777, 1, 107, 4.38], [6936, 2, 283, 5.08], [8648, 2, 199, 5.86], [990, 2, 50, 1.95], [88, 10, 564, 4.25], [83, 2, 53, 2.36], [1007, 2, 266, 2.24], [345, 3, 298, 2.54], [5151, 2, 28, 2.64], [412, 1, 66, 3.99], [361, 2, 81, 3.83], [201, 3, 298, 2.45], [22247, 2, 278, 3.6], [21793, 1, 243, 6.0], [10149, 3, 855, 5.41], [45, 2, 111, 5.3], [12721, 2, 278, 3.19], [7004, 1, 78, 2.9], [10825, 21, 643, 3.29], [2054, 3, 461, 4.41], [167, 3, 225, 3.97], [413, 1, 84, 4.22], [2057, 3, 461, 4.6], [308, 1, 165, 3.66], [5005, 1, 140, 1.87], [74, 1, 199, 5.17], [6158, 2, 137, 3.67], [168, 3, 400, 4.04], [1446, 2, 159, 1.99], [346, 1, 161, 1.87], [432, 3, 293, 3.01], [13028, 3, 145, 3.58], [10, 2, 36, 3.2], [7036, 1, 126, 6.0], [3495, 3, 977, 4.24], [214, 3, 643, 2.17], [5081, 2, 189, 3.46], [79, 1, 47, 2.5], [5208, 3, 535, 4.61], [9827, 3, 85, 3.51], [3889, 1, 122, 4.36], [1492, 1, 39, 1.76], [95, 3, 1086, 4.79], [5812, 3, 211, 3.46], [3893, 1, 122, 3.83], [13260, 29, 72, 3.5], [1504, 2, 182, 3.72], [7005, 1, 64, 2.9]]</t>
+  </si>
+  <si>
+    <t>[[589, 2, 6, 0.2], [88, 10, 12, 0.19], [8915, 2, 5, 0.2], [6935, 2, 8, 1.69], [2778, 2, 5, 0.2], [305, 2, 6, 0.45], [2328, 2, 4, 0.2], [615, 2, 4, 0.46], [326, 2, 6, 0.72], [6936, 2, 6, 1.66], [8648, 2, 5, 1.95], [8650, 2, 6, 2.46], [1446, 2, 4, 0.2], [434, 2, 4, 0.52], [205, 2, 4, 1.12], [10, 2, 6, 0.2], [144, 2, 6, 1.04], [151, 1, 4, 0.36], [94, 4, 4, 1.71], [7036, 1, 4, 1.21], [7886, 4, 4, 0.73], [141, 2, 4, 0.67], [1504, 2, 4, 1.01], [146, 2, 7, 1.32], [362, 2, 4, 1.56], [3891, 1, 4, 0.64], [21793, 1, 5, 1.56], [206, 2, 4, 0.96], [8649, 2, 4, 0.75], [11404, 2, 4, 0.42], [10993, 2, 5, 0.2], [5208, 3, 7, 0.54], [2054, 3, 5, 2.22], [3980, 4, 5, 0.98], [7005, 1, 4, 0.66], [11234, 2, 4, 1.4], [12870, 1, 4, 0.47], [145, 2, 4, 1.75], [5165, 1, 4, 0.65], [2912, 1, 4, 1.9], [8672, 2, 4, 1.69], [20927, 1, 4, 1.92], [10149, 3, 10, 1.1], [7887, 4, 4, 0.97], [998, 2, 5, 1.6], [9760, 29, 4, 0.98], [2436, 4, 4, 0.45], [417, 2, 4, 0.92], [997, 2, 4, 1.26], [142, 2, 4, 0.79], [2424, 80, 6, 1.11], [3, 2, 5, 0.2], [6158, 2, 4, 0.67], [9491, 21, 10, 0.83], [972, 3, 7, 0.51], [523, 2, 4, 0.55], [3495, 3, 10, 1.48], [11770, 1, 4, 1.36], [214, 3, 9, 0.38], [7573, 1, 9, 2.96], [11953, 1, 4, 1.0], [74, 1, 4, 1.99], [24257, 1, 4, 0.48], [5165, 2, 5, 0.65], [996, 2, 4, 0.95], [12721, 2, 4, 1.37], [2423, 80, 4, 0.72], [11772, 1, 4, 0.93], [8677, 3, 5, 1.3], [2912, 2, 7, 1.9], [6497, 1, 4, 0.97], [3981, 3, 11, 0.51], [1622, 1, 4, 0.8], [22317, 3, 4, 0.42], [8898, 3, 4, 0.75], [2438, 2, 5, 0.48], [2424, 29, 4, 0.81], [5434, 1, 4, 0.62], [823, 1, 4, 1.04], [4253, 1, 4, 0.39], [9372, 1, 4, 1.24], [3975, 4, 4, 1.2], [33, 1, 4, 0.75], [7567, 3, 4, 0.41], [6496, 1, 4, 0.51], [24258, 1, 4, 0.84], [2805, 137, 4, 1.6], [9081, 3, 7, 0.5], [9082, 3, 19, 0.83], [37, 1, 4, 0.75], [5946, 1, 4, 0.35], [11812, 1, 4, 0.48], [335, 3, 9, 0.49], [1519, 3, 10, 0.39], [8676, 2, 4, 1.69], [12764, 2, 5, 0.35], [10407, 10, 8, 1.17], [220, 4, 4, 1.76], [972, 1, 4, 0.84], [6097, 80, 4, 0.71], [23611, 3, 5, 1.3], [1243, 2, 4, 0.51], [10388, 2, 4, 0.55], [1703, 2, 4, 0.42], [161, 3, 6, 1.29], [1414, 15, 4, 0.44], [1274, 1, 4, 0.49], [95, 3, 11, 0.46], [38, 1, 4, 0.75], [11490, 1, 4, 0.44], [35, 1, 4, 0.75], [11236, 2, 4, 0.62], [22247, 2, 4, 1.23], [12212, 29, 4, 0.53], [4232, 80, 4, 1.27], [2104, 3, 9, 0.5], [1895, 3, 4, 2.5], [10631, 2, 4, 1.25], [8659, 1, 4, 0.41], [11813, 1, 4, 0.88], [13893, 2, 4, 1.17], [11235, 2, 4, 1.32], [10093, 3, 8, 0.92], [12501, 1, 4, 1.24], [8635, 3, 4, 0.87], [788, 2, 4, 0.51], [5164, 1, 4, 0.64], [8274, 3, 4, 0.87], [1309, 1, 4, 0.45], [4940, 1, 4, 0.44], [8104, 1, 4, 1.55], [10780, 10, 4, 1.03], [19931, 1, 4, 1.26], [13034, 3, 4, 1.52], [10386, 2, 4, 1.34], [11942, 29, 4, 0.91], [5151, 2, 4, 1.03], [589, 2, 168, 2.97], [88, 10, 627, 3.92], [8915, 2, 210, 3.09], [6935, 2, 311, 6.0], [2778, 2, 171, 4.06], [305, 2, 163, 3.77], [2328, 2, 166, 4.53], [615, 2, 126, 2.27], [326, 2, 43, 3.6], [6936, 2, 311, 6.0], [8648, 2, 245, 4.73], [8650, 2, 245, 6.0], [1446, 2, 166, 3.92], [434, 2, 124, 2.2], [144, 2, 71, 3.98], [151, 1, 16, 1.36], [7036, 1, 150, 3.53], [141, 2, 170, 3.73], [1504, 2, 236, 3.98], [146, 2, 168, 3.93], [362, 2, 49, 3.89], [3891, 1, 144, 2.69], [21793, 1, 269, 3.6], [206, 2, 118, 3.05], [8649, 2, 258, 4.24], [11404, 2, 121, 2.01], [3980, 4, 557, 2.92], [7005, 1, 91, 3.02], [11234, 2, 64, 3.59], [12870, 1, 161, 2.62], [5165, 1, 55, 3.24], [2912, 1, 52, 4.93], [8672, 2, 328, 4.45], [10149, 3, 1038, 3.48], [998, 2, 245, 5.45], [9760, 29, 41, 2.96], [2436, 4, 127, 2.94], [417, 2, 170, 3.73], [997, 2, 277, 3.63], [142, 2, 179, 3.58], [2424, 80, 189, 4.36], [3, 2, 128, 4.46], [6158, 2, 301, 3.64], [9491, 21, 2565, 2.94], [972, 3, 652, 4.02], [523, 2, 170, 2.64], [3495, 3, 1114, 4.13], [11770, 1, 250, 4.82], [214, 3, 228, 1.59], [7573, 1, 379, 6.0], [11953, 1, 230, 3.13], [74, 1, 227, 5.04], [24257, 1, 153, 2.9], [5165, 2, 439, 3.24], [996, 2, 277, 3.03], [12721, 2, 326, 3.84], [2423, 80, 215, 2.59], [11772, 1, 246, 4.17], [8677, 3, 306, 3.95], [2912, 2, 415, 4.94], [6497, 1, 43, 3.07], [3981, 3, 1942, 2.23], [1622, 1, 120, 4.39]]</t>
+  </si>
+  <si>
+    <t>[[305, 2, 4, 0.51], [2778, 2, 6, 0.2], [6936, 2, 6, 1.35], [205, 2, 6, 0.2], [88, 10, 9, 0.19], [144, 2, 5, 0.47], [1504, 2, 4, 0.36], [589, 2, 5, 0.2], [326, 2, 5, 0.45], [8915, 2, 5, 1.11], [8650, 2, 6, 1.21], [7036, 1, 4, 1.73], [593, 2, 7, 0.78], [2775, 2, 4, 0.81], [141, 2, 7, 0.78], [206, 2, 4, 0.65], [3980, 4, 6, 1.19], [7004, 1, 4, 1.19], [3891, 1, 4, 0.2], [2050, 3, 5, 1.68], [8853, 2, 4, 1.18], [7885, 4, 5, 0.2], [7886, 4, 6, 0.4], [2328, 2, 4, 0.2], [146, 2, 6, 1.32], [2055, 3, 6, 1.73], [2054, 3, 6, 1.85], [10, 2, 5, 0.2], [5491, 2, 4, 0.36], [362, 2, 6, 0.82], [8672, 2, 4, 0.98], [12870, 1, 6, 1.65], [8649, 2, 4, 0.71], [10993, 2, 5, 0.38], [3975, 4, 4, 1.39], [2057, 3, 5, 2.02], [21793, 1, 4, 1.93], [12349, 1, 4, 1.03], [5165, 1, 4, 0.65], [1446, 2, 4, 1.15], [13028, 3, 4, 0.62], [3982, 3, 14, 1.66], [5208, 3, 4, 1.03], [75, 2, 5, 0.46], [2991, 3, 4, 2.17], [523, 2, 5, 1.03], [145, 2, 4, 1.55], [7005, 1, 4, 0.97], [94, 4, 4, 1.88], [3495, 3, 13, 1.14], [11404, 2, 4, 0.42], [20927, 1, 4, 1.67], [997, 2, 5, 0.77], [6158, 2, 5, 2.18], [192, 3, 12, 0.77], [2912, 1, 4, 1.89], [82, 2, 5, 0.91], [22316, 3, 6, 0.51], [417, 2, 4, 0.48], [5165, 2, 5, 0.9], [7567, 3, 4, 0.71], [998, 2, 5, 0.91], [11769, 1, 5, 0.71], [389, 4, 4, 1.1], [1492, 1, 5, 0.23], [11953, 1, 4, 0.51], [4176, 4, 6, 1.31], [346, 3, 5, 1.03], [996, 2, 7, 1.72], [11767, 1, 4, 0.66], [5946, 1, 4, 0.85], [6496, 1, 4, 0.49], [8677, 3, 5, 1.15], [37, 1, 4, 1.5], [12721, 2, 4, 0.9], [972, 3, 5, 2.18], [4253, 1, 4, 0.88], [74, 1, 4, 1.04], [11490, 1, 4, 0.79], [22317, 3, 6, 0.26], [411, 2, 4, 0.64], [12212, 29, 4, 0.2], [2104, 3, 6, 0.51], [1413, 15, 4, 0.45], [345, 3, 4, 0.5], [3979, 3, 6, 1.18], [336, 15, 5, 1.42], [11085, 2, 7, 1.78], [2912, 2, 5, 1.89], [8121, 3, 4, 0.5], [1274, 1, 4, 1.01], [201, 3, 5, 0.76], [1277, 1, 4, 0.98], [14037, 3, 4, 1.47], [3, 2, 4, 0.53], [13023, 3, 5, 1.77], [21269, 3, 4, 1.0], [823, 1, 4, 0.48], [38, 1, 4, 1.42], [6494, 1, 4, 0.44], [8673, 2, 4, 2.39], [36, 1, 4, 1.5], [12271, 2, 4, 1.13], [5209, 3, 5, 1.03], [9784, 1, 4, 0.85], [10408, 10, 5, 1.16], [8676, 2, 4, 1.45], [1414, 15, 4, 0.44], [22247, 2, 4, 1.07], [2805, 137, 4, 1.9], [20498, 3, 5, 0.4], [34, 1, 4, 1.42], [9081, 3, 7, 0.56], [3577, 25, 4, 0.45], [95, 3, 11, 0.5], [10936, 2, 4, 0.45], [2878, 1, 4, 1.41], [24257, 1, 4, 1.18], [11812, 1, 4, 0.48], [10388, 2, 4, 1.26], [346, 1, 4, 0.47], [79, 1, 4, 0.43], [13928, 1, 4, 0.82], [161, 3, 5, 1.29], [13035, 3, 4, 1.32], [491, 10, 7, 0.84], [83, 2, 4, 0.41], [3576, 25, 4, 0.66], [10407, 10, 6, 1.33], [1523, 1, 4, 0.6], [19047, 3, 4, 1.34], [9069, 1, 4, 0.42], [9082, 3, 18, 0.83], [13244, 1, 4, 0.4], [972, 1, 4, 0.92], [7704, 2, 4, 0.89], [10937, 2, 4, 0.45], [305, 2, 152, 3.88], [2778, 2, 153, 2.45], [6936, 2, 284, 6.0], [205, 2, 112, 2.9], [88, 10, 587, 3.79], [144, 2, 156, 3.98], [1504, 2, 221, 3.02], [589, 2, 167, 1.74], [326, 2, 101, 2.82], [8915, 2, 195, 3.08], [8650, 2, 229, 5.42], [7036, 1, 133, 5.22], [593, 2, 210, 3.41], [2775, 2, 153, 3.42], [141, 2, 158, 4.17], [206, 2, 39, 2.88], [3980, 4, 493, 5.32], [7004, 1, 80, 3.89], [3891, 1, 128, 2.8], [2050, 3, 466, 6.0], [8853, 2, 299, 5.35], [2328, 2, 149, 2.19], [146, 2, 55, 3.93], [2055, 3, 466, 6.0], [2054, 3, 466, 6.0], [5491, 2, 118, 1.82], [362, 2, 51, 4.11], [8672, 2, 291, 5.33], [12870, 1, 141, 6.0], [8649, 2, 242, 4.17], [10993, 2, 55, 3.19], [3975, 4, 493, 4.15], [2057, 3, 466, 6.0], [21793, 1, 262, 4.91], [12349, 1, 656, 4.23], [5165, 1, 51, 3.25], [1446, 2, 37, 3.1], [13028, 3, 159, 2.38], [3982, 3, 811, 5.26], [75, 2, 151, 2.27], [2991, 3, 164, 5.3], [523, 2, 158, 4.0], [7005, 1, 80, 3.02], [3495, 3, 931, 5.24], [11404, 2, 114, 1.94], [997, 2, 232, 4.4], [192, 3, 1177, 5.06], [2912, 1, 48, 4.84], [22316, 3, 324, 3.42], [417, 2, 167, 2.05], [5165, 2, 369, 3.48], [7567, 3, 75, 3.82], [998, 2, 232, 4.4], [11769, 1, 165, 3.79], [389, 4, 196, 3.25], [1492, 1, 36, 2.3], [11953, 1, 215, 2.98], [4176, 4, 493, 5.7], [996, 2, 247, 5.21], [11767, 1, 174, 2.39], [5946, 1, 135, 2.77], [6496, 1, 44, 2.07], [8677, 3, 296, 5.22]]</t>
+  </si>
+  <si>
+    <t>[[141, 2, 5, 0.2], [362, 2, 4, 0.44], [361, 2, 4, 0.2], [8650, 2, 4, 1.71], [5491, 2, 5, 0.2], [5493, 2, 4, 0.51], [11685, 2, 4, 0.2], [417, 2, 5, 0.2], [326, 2, 5, 0.55], [8672, 2, 5, 1.21], [6935, 2, 13, 1.06], [205, 2, 4, 0.2], [1124, 2, 6, 0.32], [11681, 2, 5, 0.49], [11838, 2, 6, 0.63], [12721, 2, 6, 0.48], [248, 1, 5, 0.2], [8915, 2, 5, 0.2], [11837, 2, 4, 1.32], [142, 2, 4, 0.2], [6936, 2, 6, 1.25], [2778, 2, 6, 0.2], [1446, 2, 4, 1.04], [8676, 2, 4, 1.21], [21793, 1, 4, 1.39], [305, 2, 6, 1.23], [22247, 2, 4, 1.1], [11835, 2, 4, 1.5], [616, 2, 6, 0.2], [593, 2, 5, 0.78], [411, 2, 4, 0.89], [10574, 3, 5, 0.47], [990, 2, 4, 0.47], [8673, 2, 4, 0.97], [2775, 2, 4, 0.23], [145, 2, 4, 0.91], [6158, 2, 5, 0.45], [11836, 2, 4, 1.4], [2055, 3, 4, 0.8], [3495, 3, 13, 1.54], [88, 10, 8, 0.6], [10149, 3, 13, 1.25], [75, 2, 4, 0.57], [146, 2, 4, 0.91], [2054, 3, 4, 0.8], [2057, 3, 4, 0.8], [7705, 2, 4, 0.45], [61, 3, 4, 0.2], [7885, 4, 4, 0.46], [2424, 29, 4, 0.75], [7704, 2, 6, 1.15], [144, 2, 4, 0.91], [5165, 1, 4, 0.86], [2859, 15, 4, 0.58], [2423, 29, 4, 0.79], [2423, 80, 4, 0.79], [201, 3, 6, 1.01], [308, 1, 7, 1.86], [1414, 15, 4, 0.44], [335, 3, 10, 0.49], [7706, 2, 4, 0.45], [60, 3, 5, 0.55], [9126, 1, 4, 1.42], [13028, 3, 4, 1.23], [2424, 80, 4, 0.72], [214, 3, 9, 0.57], [1519, 3, 9, 0.39], [345, 3, 4, 0.47], [13034, 3, 5, 1.37], [13023, 3, 6, 1.51], [11770, 1, 4, 1.74], [2703, 3, 4, 1.7], [432, 3, 4, 1.23], [410, 1, 4, 0.52], [6494, 1, 4, 1.67], [3430, 15, 4, 0.8], [94, 4, 4, 0.48], [1886, 2, 4, 0.37], [1492, 1, 4, 0.87], [13928, 1, 4, 0.75], [20927, 1, 4, 0.67], [3893, 1, 4, 1.55], [3891, 1, 4, 1.55], [2331, 1, 4, 0.79], [3981, 3, 8, 0.51], [13033, 3, 4, 0.5], [11811, 1, 4, 0.38], [11952, 1, 4, 1.18], [9690, 1, 4, 0.54], [11089, 1, 4, 0.46], [5733, 2, 5, 1.16], [6097, 80, 4, 1.17], [952, 4, 4, 1.5], [7886, 4, 4, 0.44], [5812, 3, 4, 1.51], [1274, 1, 4, 1.18], [1309, 1, 4, 1.14], [22558, 3, 4, 2.17], [944, 15, 4, 0.39], [5946, 1, 4, 1.55], [114, 3, 4, 0.36], [7708, 2, 4, 0.45], [105, 3, 4, 0.35], [10410, 10, 6, 1.21], [95, 3, 8, 1.05], [10407, 10, 6, 1.21], [3478, 2, 4, 1.03], [5584, 3, 4, 1.15], [7703, 2, 4, 0.45], [3980, 4, 4, 1.26], [8274, 3, 4, 0.87], [9082, 3, 15, 0.83], [3889, 1, 4, 1.55], [13264, 29, 4, 0.49], [20555, 2, 4, 0.45], [10408, 10, 6, 1.21], [192, 3, 13, 2.07], [10398, 2, 4, 0.49], [5811, 3, 4, 2.0], [2805, 137, 5, 2.33], [7005, 1, 4, 0.86], [823, 1, 4, 2.45], [5165, 2, 5, 0.84], [6630, 3, 4, 1.22], [11603, 2, 4, 0.36], [963, 3, 4, 0.89], [13263, 29, 4, 0.55], [6497, 1, 4, 1.36], [21003, 2, 4, 0.72], [12229, 2, 4, 0.7], [14041, 3, 5, 0.63], [13928, 2, 4, 0.75], [10516, 3, 4, 0.99], [9491, 21, 10, 3.02], [186, 3, 7, 1.23], [141, 2, 168, 1.94], [362, 2, 152, 2.16], [361, 2, 151, 2.34], [8650, 2, 203, 5.6], [5491, 2, 100, 2.58], [5493, 2, 116, 2.29], [11685, 2, 291, 4.27], [417, 2, 151, 2.27], [326, 2, 89, 2.74], [8672, 2, 303, 4.46], [6935, 2, 291, 6.0], [205, 2, 100, 2.3], [1124, 2, 174, 3.15], [11681, 2, 307, 2.72], [11838, 2, 239, 4.54], [12721, 2, 261, 4.74], [11837, 2, 239, 3.85], [142, 2, 151, 2.36], [6936, 2, 291, 5.86], [2778, 2, 145, 4.12], [1446, 2, 61, 3.0], [8676, 2, 303, 3.65], [21793, 1, 261, 4.37], [305, 2, 40, 3.77], [22247, 2, 302, 3.43], [11835, 2, 239, 4.21], [616, 2, 100, 2.77], [593, 2, 243, 2.76], [411, 2, 72, 2.91], [10574, 3, 547, 2.34], [990, 2, 56, 2.21], [8673, 2, 274, 4.47], [2775, 2, 151, 2.48], [145, 2, 163, 3.06], [6158, 2, 281, 2.65], [11836, 2, 269, 4.76], [2055, 3, 501, 2.91], [3495, 3, 1026, 4.33], [88, 10, 611, 2.63], [10149, 3, 956, 3.54], [75, 2, 154, 2.67], [146, 2, 163, 3.06], [2054, 3, 501, 2.85], [2057, 3, 501, 2.91], [7705, 2, 187, 2.71], [61, 3, 201, 2.25], [2424, 29, 36, 3.81], [7704, 2, 162, 4.3], [144, 2, 163, 3.06], [5165, 1, 51, 2.97], [2859, 15, 73, 2.43], [2423, 29, 39, 3.13], [2423, 80, 197, 3.13], [201, 3, 276, 4.48], [308, 1, 172, 6.0], [1414, 15, 105, 2.16], [335, 3, 1391, 2.27], [7706, 2, 187, 2.83], [60, 3, 857, 2.58], [9126, 1, 74, 4.04], [13028, 3, 155, 5.21], [2424, 80, 181, 3.79], [214, 3, 692, 2.34], [1519, 3, 652, 1.72], [345, 3, 320, 2.21]]</t>
+  </si>
+  <si>
+    <t>[[2778, 2, 10, 0.2], [305, 2, 5, 0.23], [6936, 2, 5, 1.17], [8672, 2, 5, 1.21], [2775, 2, 4, 0.47], [8853, 2, 4, 0.83], [145, 2, 5, 0.92], [2776, 2, 4, 1.06], [12721, 2, 6, 1.21], [2327, 2, 5, 0.2], [361, 2, 5, 0.4], [146, 2, 5, 0.62], [8675, 2, 5, 0.73], [11681, 2, 5, 0.21], [141, 2, 4, 0.4], [8673, 2, 7, 0.73], [205, 2, 5, 1.47], [308, 1, 7, 0.49], [8676, 2, 4, 1.21], [1124, 2, 5, 0.54], [11835, 2, 4, 1.79], [144, 2, 5, 1.42], [417, 2, 4, 0.4], [9507, 3, 4, 0.49], [8650, 2, 5, 1.28], [11837, 2, 4, 1.62], [8648, 2, 4, 0.65], [3, 2, 6, 1.09], [6097, 80, 5, 2.57], [2423, 29, 4, 1.44], [6097, 29, 4, 2.58], [6497, 1, 4, 1.36], [11836, 2, 4, 1.7], [990, 2, 4, 0.2], [593, 2, 5, 1.55], [6098, 80, 4, 2.49], [88, 10, 8, 0.6], [11739, 2, 4, 0.49], [523, 2, 4, 0.76], [2423, 80, 5, 0.87], [13260, 29, 4, 1.4], [8915, 2, 4, 0.45], [6494, 1, 4, 1.67], [6158, 2, 5, 0.45], [326, 2, 4, 0.55], [75, 2, 5, 1.81], [1339, 1, 4, 0.43], [378, 2, 4, 1.28], [411, 2, 4, 0.74], [1492, 1, 4, 0.87], [151, 1, 4, 0.45], [335, 3, 10, 0.49], [1050, 2, 4, 0.85], [2859, 15, 4, 0.63], [6496, 1, 4, 0.66], [61, 3, 6, 0.2], [13264, 29, 4, 0.52], [1049, 2, 4, 1.1], [345, 3, 4, 0.36], [10149, 3, 13, 1.25], [7704, 2, 4, 1.11], [964, 15, 4, 0.59], [432, 3, 4, 1.65], [1243, 2, 4, 1.11], [13259, 29, 4, 0.41], [22558, 3, 4, 2.17], [7705, 2, 6, 2.04], [201, 3, 4, 1.02], [5208, 3, 8, 1.79], [2912, 1, 4, 1.99], [186, 3, 7, 0.67], [229, 1, 4, 1.04], [21793, 1, 4, 1.45], [2438, 1, 4, 0.85], [12229, 2, 4, 0.45], [13928, 1, 4, 0.71], [3478, 2, 4, 0.83], [7706, 2, 4, 1.23], [10407, 10, 6, 1.21], [11738, 2, 4, 0.49], [2703, 3, 4, 1.7], [9507, 1, 4, 0.44], [11844, 2, 4, 0.63], [11490, 1, 4, 0.74], [7036, 1, 4, 0.76], [94, 4, 4, 0.48], [11687, 2, 4, 0.9], [1886, 2, 4, 0.37], [11404, 2, 4, 0.42], [114, 3, 4, 0.41], [159, 16, 4, 0.47], [10408, 10, 6, 1.21], [956, 2, 4, 0.52], [7708, 2, 4, 1.23], [20927, 1, 4, 1.66], [2438, 2, 5, 0.76], [10406, 10, 7, 1.21], [9065, 2, 4, 0.78], [11689, 2, 4, 0.89], [12870, 1, 4, 0.94], [22125, 2, 4, 0.36], [152, 21, 4, 0.5], [11690, 2, 4, 0.65], [7005, 1, 4, 1.13], [1274, 1, 4, 1.5], [2991, 3, 4, 2.17], [11161, 1, 5, 0.89], [13259, 25, 4, 0.41], [5769, 3, 6, 0.26], [2805, 137, 5, 0.92], [159, 1, 4, 0.45], [4253, 1, 4, 0.43], [3495, 3, 13, 1.54], [5584, 3, 4, 1.15], [7007, 1, 4, 1.13], [5976, 1, 4, 2.31], [9690, 1, 4, 0.51], [9239, 29, 4, 1.36], [9209, 29, 4, 1.53], [11811, 1, 4, 0.38], [9491, 21, 10, 1.42], [9239, 25, 4, 1.36], [7886, 4, 4, 0.45], [8600, 1, 4, 0.36], [5769, 1, 4, 0.46], [7567, 3, 4, 0.83], [96, 11, 15, 1.09], [24257, 1, 4, 1.04], [95, 3, 8, 0.38], [247, 1, 4, 1.28], [21269, 3, 4, 2.75], [20555, 2, 4, 0.45], [13198, 29, 4, 0.94], [1691, 1, 4, 2.29], [5209, 3, 5, 1.79], [9372, 1, 4, 1.37], [2778, 2, 166, 2.39], [305, 2, 136, 3.77], [6936, 2, 261, 5.68], [8672, 2, 303, 4.46], [2775, 2, 150, 2.95], [8853, 2, 307, 2.91], [145, 2, 76, 3.71], [2776, 2, 166, 3.35], [12721, 2, 261, 4.97], [2327, 2, 138, 5.11], [361, 2, 149, 2.33], [146, 2, 139, 3.93], [8675, 2, 269, 3.17], [11681, 2, 289, 3.99], [141, 2, 149, 2.77], [8673, 2, 262, 5.33], [308, 1, 180, 3.47], [8676, 2, 303, 3.65], [1124, 2, 178, 3.3], [11835, 2, 266, 4.84], [144, 2, 41, 3.98], [417, 2, 145, 3.66], [9507, 3, 54, 1.69], [8650, 2, 203, 6.0], [11837, 2, 266, 4.5], [8648, 2, 238, 4.54], [3, 2, 110, 4.24], [2423, 29, 36, 4.49], [6497, 1, 38, 4.63], [11836, 2, 266, 4.66], [990, 2, 48, 2.56], [593, 2, 90, 3.73], [88, 10, 611, 2.63], [11739, 2, 61, 2.68], [523, 2, 149, 3.27], [2423, 80, 176, 3.28], [13260, 29, 77, 4.01], [8915, 2, 204, 2.18], [6494, 1, 51, 4.6], [6158, 2, 281, 2.65], [326, 2, 98, 2.49], [75, 2, 132, 4.81], [1339, 1, 66, 2.51], [378, 2, 238, 3.84], [411, 2, 115, 2.73], [1492, 1, 39, 2.98], [151, 1, 17, 2.47], [335, 3, 1391, 2.27], [1050, 2, 30, 2.39], [2859, 15, 73, 2.52], [6496, 1, 43, 2.58], [61, 3, 201, 2.74], [13264, 29, 77, 2.31], [345, 3, 319, 2.34], [10149, 3, 956, 3.54], [7704, 2, 187, 3.46], [432, 3, 276, 4.49], [1243, 2, 104, 3.52], [13259, 29, 37, 2.9], [22558, 3, 481, 5.49], [201, 3, 319, 3.28], [5208, 3, 559, 4.95], [2912, 1, 48, 5.22], [186, 3, 703, 2.92]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 5, 0.91], [141, 2, 4, 0.2], [2778, 2, 8, 0.2], [361, 2, 4, 0.2], [6935, 2, 12, 1.05], [205, 2, 4, 1.29], [12721, 2, 8, 0.96], [8676, 2, 5, 1.1], [417, 2, 5, 0.2], [2049, 3, 15, 0.2], [3, 2, 4, 0.97], [248, 1, 4, 0.48], [8675, 2, 5, 0.73], [22247, 2, 4, 1.0], [6936, 2, 5, 0.47], [523, 2, 5, 0.2], [305, 2, 6, 0.73], [8650, 2, 5, 1.33], [11838, 2, 5, 0.63], [2328, 2, 5, 0.79], [2776, 2, 4, 0.69], [8648, 2, 4, 0.65], [2327, 2, 4, 0.2], [8853, 2, 4, 0.83], [11739, 2, 4, 0.58], [11837, 2, 4, 1.9], [6497, 1, 4, 1.36], [411, 2, 4, 0.89], [412, 1, 4, 1.06], [2805, 137, 5, 0.39], [6097, 80, 6, 2.11], [6097, 29, 4, 0.98], [11835, 2, 4, 1.45], [146, 2, 4, 0.91], [583, 2, 5, 0.76], [326, 2, 4, 0.55], [10149, 3, 13, 0.92], [145, 2, 4, 0.91], [11836, 2, 4, 1.35], [144, 2, 4, 0.91], [75, 2, 4, 1.81], [10574, 3, 5, 0.68], [6494, 1, 5, 0.22], [2055, 3, 4, 0.8], [2057, 3, 4, 0.8], [2422, 29, 4, 1.01], [6496, 1, 4, 0.67], [2054, 3, 5, 1.08], [6098, 80, 4, 0.83], [6098, 29, 4, 0.59], [1243, 2, 4, 1.3], [1886, 2, 4, 0.37], [8915, 2, 4, 0.45], [21793, 1, 4, 1.45], [1492, 1, 4, 0.87], [944, 15, 4, 0.38], [247, 1, 4, 0.61], [3478, 2, 4, 0.86], [7084, 3, 4, 2.21], [5165, 1, 4, 0.86], [2859, 15, 4, 0.58], [6158, 2, 5, 0.67], [335, 3, 10, 0.49], [201, 3, 4, 0.51], [192, 3, 13, 1.24], [13928, 1, 4, 0.69], [5208, 3, 8, 1.44], [3934, 5, 7, 1.47], [5812, 3, 4, 0.66], [107, 2, 4, 0.54], [11489, 1, 4, 0.63], [24722, 2, 4, 0.2], [4253, 1, 4, 0.43], [94, 4, 4, 0.48], [1519, 3, 9, 0.39], [186, 3, 7, 0.67], [214, 3, 9, 0.57], [9491, 21, 10, 1.29], [5811, 3, 4, 2.0], [1703, 2, 4, 0.5], [1050, 2, 4, 0.85], [11767, 1, 4, 0.85], [5813, 3, 5, 0.66], [8938, 2, 4, 1.01], [61, 3, 4, 0.2], [1309, 1, 4, 1.14], [10398, 2, 4, 1.44], [2991, 3, 4, 2.17], [3495, 3, 13, 1.54], [13260, 29, 4, 1.58], [2438, 2, 5, 0.76], [11769, 1, 4, 0.85], [11671, 1, 4, 1.7], [8599, 1, 4, 3.81], [11811, 1, 4, 0.38], [229, 1, 4, 1.04], [8943, 3, 4, 0.72], [19687, 1, 4, 1.21], [2104, 3, 6, 0.47], [13928, 2, 4, 0.69], [1049, 2, 4, 0.85], [7036, 1, 4, 0.76], [5584, 3, 4, 1.15], [10124, 1, 4, 2.17], [7004, 1, 4, 0.53], [955, 2, 4, 0.44], [11808, 1, 4, 1.82], [9690, 1, 4, 0.38], [22573, 2, 4, 1.08], [18964, 1, 4, 1.13], [3334, 5, 4, 0.39], [6575, 3, 4, 0.71], [8274, 3, 4, 0.87], [20927, 1, 4, 1.86], [45, 2, 4, 1.79], [1523, 1, 4, 2.32], [9239, 29, 4, 1.36], [4001, 3, 8, 0.93], [2438, 1, 4, 0.71], [105, 3, 4, 0.4], [11678, 1, 4, 1.58], [13258, 29, 5, 1.12], [1277, 1, 4, 1.91], [19685, 1, 4, 1.38], [1701, 2, 4, 0.67], [11886, 2, 4, 0.73], [3477, 2, 4, 1.1], [7567, 3, 4, 1.18], [21269, 3, 4, 2.75], [9209, 29, 4, 2.15], [5165, 2, 5, 0.84], [3984, 3, 5, 0.62], [10181, 26, 5, 0.46], [8635, 3, 4, 0.87], [7005, 1, 4, 1.33], [8672, 2, 263, 4.66], [141, 2, 144, 3.6], [2778, 2, 158, 3.12], [361, 2, 150, 3.05], [6935, 2, 291, 6.0], [12721, 2, 262, 5.36], [8676, 2, 263, 4.38], [417, 2, 150, 3.05], [2049, 3, 328, 2.4], [3, 2, 47, 4.13], [248, 1, 22, 1.92], [8675, 2, 274, 3.37], [22247, 2, 303, 3.24], [6936, 2, 269, 3.46], [523, 2, 144, 3.5], [305, 2, 135, 3.77], [8650, 2, 214, 5.0], [11838, 2, 239, 5.02], [2328, 2, 138, 4.16], [2776, 2, 150, 3.89], [8648, 2, 238, 4.54], [2327, 2, 138, 4.26], [8853, 2, 307, 2.91], [11739, 2, 61, 2.77], [11837, 2, 270, 5.03], [6497, 1, 38, 4.63], [411, 2, 104, 3.04], [412, 1, 88, 3.35], [2805, 137, 187, 3.68], [6097, 29, 37, 3.2], [11835, 2, 270, 4.85], [146, 2, 163, 3.06], [583, 2, 87, 3.09], [326, 2, 98, 2.49], [10149, 3, 963, 2.95], [145, 2, 163, 3.06], [11836, 2, 270, 4.63], [144, 2, 163, 3.06], [75, 2, 137, 4.79], [10574, 3, 544, 2.8], [6494, 1, 50, 4.6], [2055, 3, 451, 4.27], [2057, 3, 126, 4.32], [2422, 29, 40, 3.25], [6496, 1, 43, 2.6], [2054, 3, 477, 4.26], [6098, 80, 72, 3.57], [6098, 29, 41, 2.45], [1243, 2, 104, 3.81], [1886, 2, 167, 2.11], [8915, 2, 204, 2.18], [21793, 1, 261, 4.51], [1492, 1, 39, 2.98], [944, 15, 12, 1.48], [247, 1, 94, 2.48], [3478, 2, 81, 2.97], [7084, 3, 133, 5.56], [5165, 1, 51, 2.97], [2859, 15, 73, 2.43], [6158, 2, 278, 2.94], [335, 3, 1391, 2.27], [201, 3, 321, 2.75], [192, 3, 1251, 5.29], [13928, 1, 51, 2.64], [5208, 3, 569, 4.95]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 7, 0.52], [305, 2, 4, 0.2], [8650, 2, 4, 1.33], [2778, 2, 6, 0.2], [141, 2, 4, 0.66], [8672, 2, 7, 2.86], [143, 2, 8, 1.9], [6936, 2, 5, 0.76], [145, 2, 4, 0.25], [11837, 2, 4, 1.57], [361, 2, 4, 0.2], [11681, 2, 5, 0.46], [417, 2, 5, 0.2], [75, 2, 5, 0.97], [205, 2, 5, 0.56], [1124, 2, 5, 0.32], [146, 2, 4, 0.57], [11737, 2, 4, 0.55], [8648, 2, 5, 1.1], [12721, 2, 5, 0.73], [8673, 2, 6, 0.2], [523, 2, 4, 0.38], [8853, 2, 5, 1.42], [615, 2, 4, 0.74], [11835, 2, 6, 1.74], [326, 2, 6, 0.85], [990, 2, 4, 0.23], [8675, 2, 5, 1.2], [88, 10, 12, 0.2], [8915, 2, 6, 1.39], [144, 2, 6, 0.91], [434, 2, 6, 0.3], [1005, 2, 5, 1.14], [11739, 2, 4, 0.92], [2424, 29, 4, 0.65], [8676, 2, 5, 2.16], [6158, 2, 7, 0.2], [7704, 2, 4, 1.0], [2423, 29, 4, 0.62], [11836, 2, 4, 1.65], [7705, 2, 4, 1.9], [2424, 80, 4, 0.65], [11738, 2, 4, 0.92], [7706, 2, 4, 1.23], [7004, 1, 4, 1.81], [3478, 2, 4, 0.8], [3, 2, 4, 0.38], [2423, 80, 4, 0.63], [1414, 15, 4, 0.37], [2859, 15, 4, 1.62], [74, 1, 4, 0.91], [3429, 15, 4, 0.2], [2055, 3, 4, 1.98], [10149, 3, 13, 1.25], [6497, 1, 4, 1.36], [18964, 1, 4, 1.13], [12343, 1, 4, 1.71], [13028, 3, 4, 1.23], [94, 4, 4, 0.48], [13928, 1, 4, 0.68], [13034, 3, 5, 1.2], [7084, 3, 4, 0.7], [411, 2, 4, 0.83], [11919, 1, 4, 0.38], [3893, 1, 4, 1.24], [6097, 80, 4, 1.09], [11089, 1, 4, 1.16], [7707, 2, 5, 1.25], [7036, 1, 4, 0.43], [1050, 2, 5, 0.85], [563, 2, 4, 0.68], [192, 3, 13, 2.07], [3891, 1, 4, 1.24], [1339, 1, 4, 0.45], [6630, 3, 4, 1.22], [6494, 1, 4, 1.67], [345, 3, 4, 0.36], [21793, 1, 4, 1.39], [1243, 2, 4, 1.3], [8274, 3, 6, 0.84], [7708, 2, 4, 1.08], [2912, 1, 4, 1.31], [13023, 3, 6, 1.51], [11581, 29, 4, 0.87], [13033, 3, 4, 0.8], [3889, 1, 4, 1.24], [11490, 1, 4, 0.64], [8943, 3, 4, 0.37], [1049, 2, 4, 0.85], [5208, 3, 8, 1.79], [12229, 2, 4, 0.7], [5940, 3, 4, 1.54], [22558, 3, 5, 0.88], [3495, 3, 13, 1.54], [5165, 1, 4, 0.86], [2331, 1, 4, 1.18], [515, 24, 4, 0.51], [201, 3, 4, 0.86], [6629, 3, 4, 0.47], [83, 2, 4, 0.5], [336, 15, 4, 0.35], [1274, 1, 4, 1.18], [7885, 4, 5, 0.56], [229, 1, 4, 1.04], [1309, 1, 4, 1.14], [5812, 3, 5, 1.01], [7005, 1, 4, 1.33], [332, 2, 4, 0.69], [951, 4, 4, 1.58], [21269, 3, 4, 2.75], [214, 3, 9, 0.57], [9690, 1, 4, 0.51], [942, 3, 4, 0.55], [2805, 137, 5, 1.57], [8898, 3, 4, 1.66], [247, 1, 4, 1.24], [335, 3, 13, 0.62], [11914, 1, 4, 0.86], [23961, 3, 4, 2.19], [20555, 2, 4, 0.73], [1703, 2, 4, 0.5], [24257, 1, 4, 1.67], [4940, 1, 4, 0.4], [9827, 3, 4, 0.52], [5811, 3, 6, 0.5], [8635, 3, 4, 0.69], [3934, 5, 7, 1.47], [7573, 1, 4, 0.81], [186, 3, 7, 1.23], [9491, 21, 10, 1.29], [114, 3, 4, 1.44], [11770, 1, 4, 1.74], [10527, 3, 8, 0.82], [13498, 3, 4, 1.32], [5584, 3, 4, 1.15], [11586, 1, 6, 1.46], [19687, 1, 4, 1.21], [6935, 2, 277, 3.62], [305, 2, 135, 3.67], [8650, 2, 225, 4.85], [2778, 2, 143, 3.54], [141, 2, 165, 2.58], [8672, 2, 260, 5.54], [143, 2, 114, 3.95], [6936, 2, 291, 6.0], [145, 2, 139, 3.71], [11837, 2, 238, 5.03], [361, 2, 149, 3.32], [11681, 2, 270, 3.74], [417, 2, 149, 3.32], [75, 2, 134, 4.68], [205, 2, 58, 3.15], [1124, 2, 180, 3.15], [146, 2, 139, 3.93], [11737, 2, 61, 2.37], [8648, 2, 214, 4.02], [12721, 2, 261, 5.11], [8673, 2, 262, 5.33], [523, 2, 149, 2.77], [8853, 2, 291, 6.0], [615, 2, 116, 2.73], [11835, 2, 238, 3.55], [326, 2, 85, 3.49], [990, 2, 51, 2.48], [8675, 2, 269, 5.16], [88, 10, 580, 3.9], [8915, 2, 51, 3.45], [144, 2, 139, 3.98], [434, 2, 57, 2.72], [11739, 2, 61, 3.11], [2424, 29, 37, 2.56], [8676, 2, 76, 5.54], [6158, 2, 241, 3.51], [7704, 2, 162, 5.16], [2423, 29, 40, 2.5], [11836, 2, 238, 4.49], [2424, 80, 184, 2.56], [11738, 2, 23, 3.24], [7706, 2, 169, 3.93], [7004, 1, 31, 4.56], [3478, 2, 81, 2.85], [3, 2, 125, 2.04], [2423, 80, 198, 2.52], [1414, 15, 106, 2.02], [74, 1, 199, 5.92], [3429, 15, 26, 2.25], [2055, 3, 446, 5.43], [10149, 3, 956, 3.54], [6497, 1, 38, 4.63], [18964, 1, 72, 3.49], [12343, 1, 629, 4.64], [13028, 3, 139, 3.68], [94, 4, 132, 2.23], [13928, 1, 51, 2.62], [13034, 3, 626, 3.7], [7084, 3, 137, 4.0], [411, 2, 115, 2.91], [11919, 1, 40, 1.48], [3893, 1, 130, 3.8], [6097, 80, 75, 3.41]]</t>
+  </si>
+  <si>
+    <t>[[589, 2, 5, 0.2], [141, 2, 5, 0.2], [2327, 2, 6, 0.2], [2778, 2, 5, 0.2], [6936, 2, 5, 0.69], [362, 2, 5, 0.31], [326, 2, 5, 0.4], [305, 2, 4, 1.01], [2775, 2, 4, 1.06], [1446, 2, 4, 1.54], [9760, 29, 4, 0.4], [8649, 2, 5, 0.64], [8853, 2, 5, 0.71], [593, 2, 4, 0.78], [11581, 29, 4, 0.81], [9507, 3, 4, 0.43], [3840, 1, 5, 0.2], [1429, 2, 4, 1.59], [523, 2, 5, 0.54], [7004, 1, 4, 1.0], [7036, 1, 4, 1.53], [5165, 1, 5, 1.2], [990, 2, 4, 0.36], [159, 3, 6, 0.2], [615, 2, 4, 0.51], [201, 3, 6, 0.41], [8089, 1, 4, 0.36], [145, 2, 4, 0.78], [248, 1, 4, 0.2], [345, 3, 6, 0.51], [6952, 1, 4, 0.71], [146, 2, 4, 0.78], [6097, 80, 5, 2.13], [7084, 3, 4, 1.45], [24664, 2, 17, 1.68], [2050, 3, 5, 0.97], [142, 2, 4, 0.58], [144, 2, 4, 0.78], [2912, 1, 4, 1.2], [7005, 1, 4, 0.76], [11770, 1, 4, 0.53], [3891, 1, 4, 0.84], [1886, 2, 4, 0.4], [997, 2, 4, 0.37], [432, 3, 4, 1.65], [998, 2, 4, 0.47], [6097, 29, 4, 1.04], [3893, 1, 4, 0.84], [6158, 2, 5, 0.36], [5165, 2, 7, 0.65], [10149, 3, 13, 0.75], [2424, 80, 4, 1.18], [12870, 1, 4, 0.47], [10517, 29, 4, 1.24], [11772, 1, 4, 0.89], [11089, 1, 4, 0.58], [20927, 1, 4, 1.36], [6098, 80, 4, 0.71], [7885, 4, 4, 0.49], [10574, 3, 5, 0.83], [1492, 1, 4, 0.43], [9372, 1, 4, 1.33], [4032, 29, 4, 1.1], [5208, 3, 5, 0.73], [3334, 5, 5, 1.14], [22316, 3, 5, 0.25], [13028, 3, 5, 0.86], [1519, 3, 10, 0.39], [3576, 25, 4, 1.54], [1490, 1, 4, 0.53], [3889, 1, 4, 0.84], [1700, 2, 4, 1.36], [12304, 1, 4, 1.75], [2912, 2, 5, 1.2], [13034, 3, 4, 0.55], [972, 3, 5, 1.27], [214, 3, 9, 0.49], [11952, 1, 4, 1.01], [5151, 2, 4, 1.03], [229, 1, 4, 1.08], [2331, 1, 4, 0.49], [11426, 25, 4, 1.01], [5812, 3, 5, 0.5], [9289, 29, 4, 0.48], [11490, 1, 4, 0.52], [3478, 2, 4, 0.76], [8677, 3, 5, 0.5], [13893, 2, 4, 0.83], [995, 2, 4, 1.24], [75, 2, 4, 0.42], [3, 2, 4, 1.17], [10, 2, 5, 0.2], [414, 1, 4, 0.87], [3575, 25, 4, 0.68], [2160, 68, 4, 1.02], [2805, 137, 4, 0.52], [410, 1, 4, 0.57], [13244, 1, 4, 0.39], [13023, 3, 5, 1.51], [11404, 2, 4, 0.42], [1309, 1, 4, 0.41], [4253, 1, 4, 0.85], [159, 1, 4, 0.53], [192, 3, 9, 1.79], [5209, 3, 4, 1.44], [9069, 1, 4, 0.67], [11813, 1, 4, 2.81], [6494, 1, 4, 1.05], [2438, 2, 5, 0.65], [24257, 1, 4, 1.72], [957, 2, 4, 0.45], [9971, 2, 4, 1.39], [9491, 21, 9, 1.43], [14037, 3, 4, 1.08], [9967, 2, 4, 1.39], [159, 16, 4, 0.54], [4033, 29, 4, 1.54], [2878, 1, 4, 0.41], [105, 3, 4, 1.03], [9964, 2, 4, 0.93], [5584, 3, 4, 0.8], [21697, 3, 4, 0.52], [22317, 3, 5, 0.83], [823, 1, 4, 0.46], [9965, 2, 4, 1.39], [8283, 2, 5, 0.95], [10609, 1, 4, 1.16], [10407, 10, 6, 0.74], [4076, 3, 4, 1.75], [13033, 3, 4, 0.55], [3495, 3, 10, 1.61], [1277, 1, 4, 1.65], [4586, 10, 13, 0.8], [11687, 2, 4, 0.67], [12647, 1, 4, 2.56], [7567, 3, 4, 1.06], [589, 2, 183, 1.98], [141, 2, 175, 3.51], [2327, 2, 170, 3.8], [2778, 2, 176, 2.93], [6936, 2, 316, 6.0], [362, 2, 159, 3.84], [326, 2, 99, 2.74], [305, 2, 106, 3.87], [2775, 2, 186, 3.28], [9760, 29, 86, 2.0], [8649, 2, 250, 4.3], [8853, 2, 297, 3.51], [593, 2, 270, 2.78], [11581, 29, 67, 3.04], [9507, 3, 72, 1.74], [3840, 1, 73, 2.05], [523, 2, 175, 3.6], [7004, 1, 19, 2.61], [7036, 1, 144, 5.02], [5165, 1, 54, 4.02], [990, 2, 13, 1.37], [159, 3, 485, 2.12], [615, 2, 130, 2.21], [201, 3, 72, 4.29], [8089, 1, 83, 3.1], [145, 2, 182, 2.73], [248, 1, 61, 2.3], [345, 3, 340, 4.29], [6952, 1, 228, 2.6], [146, 2, 182, 2.73], [7084, 3, 152, 4.51], [24664, 2, 303, 3.95], [142, 2, 185, 2.35], [144, 2, 182, 2.73], [2912, 1, 56, 3.6], [7005, 1, 57, 2.6], [11770, 1, 256, 4.01], [3891, 1, 147, 2.85], [1886, 2, 187, 2.52], [997, 2, 290, 1.95], [432, 3, 334, 4.66], [998, 2, 290, 2.13], [6097, 29, 42, 3.23], [3893, 1, 147, 2.85], [6158, 2, 279, 5.58], [5165, 2, 453, 2.47], [10149, 3, 1041, 2.72], [2424, 80, 204, 3.5], [12870, 1, 165, 2.65], [10517, 29, 82, 3.68], [11772, 1, 255, 3.71], [11089, 1, 203, 2.35], [6098, 80, 91, 2.6], [10574, 3, 607, 2.7], [1492, 1, 45, 2.06], [9372, 1, 285, 3.85], [4032, 29, 114, 3.35], [5208, 3, 634, 4.87], [3334, 5, 204, 5.85], [22316, 3, 341, 2.43], [13028, 3, 33, 4.9], [1519, 3, 582, 1.67], [3576, 25, 119, 4.19], [1490, 1, 60, 2.25]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 8, 0.97], [305, 2, 5, 0.75], [6935, 2, 10, 1.19], [141, 2, 6, 0.39], [2049, 3, 15, 0.2], [12721, 2, 6, 1.22], [151, 1, 4, 0.4], [205, 2, 4, 0.2], [130, 1, 4, 0.51], [1776, 1, 4, 1.85], [362, 2, 5, 1.07], [146, 2, 4, 0.58], [145, 2, 4, 0.39], [593, 2, 6, 0.59], [8915, 2, 6, 0.2], [2328, 2, 6, 0.2], [8648, 2, 4, 1.02], [1777, 1, 5, 0.68], [3, 2, 4, 0.76], [5151, 2, 4, 0.44], [6936, 2, 6, 0.92], [248, 1, 4, 0.2], [8675, 2, 6, 0.72], [22247, 2, 6, 0.95], [1007, 2, 9, 0.2], [2778, 2, 6, 0.2], [10, 2, 6, 0.2], [88, 10, 11, 0.45], [8677, 3, 6, 2.06], [412, 1, 4, 1.16], [11681, 2, 6, 1.12], [10149, 3, 17, 1.32], [10825, 21, 9, 1.39], [2054, 3, 7, 0.59], [75, 2, 4, 0.66], [13028, 3, 5, 0.5], [147, 1, 4, 0.68], [361, 2, 4, 0.65], [413, 1, 4, 1.7], [2055, 3, 6, 0.79], [7004, 1, 4, 0.4], [2057, 3, 5, 0.79], [8676, 2, 4, 0.97], [411, 2, 4, 0.99], [308, 1, 5, 1.76], [410, 1, 5, 0.61], [61, 3, 4, 0.46], [432, 3, 5, 0.39], [1446, 2, 4, 0.52], [1124, 2, 8, 0.2], [45, 2, 4, 1.37], [7005, 1, 4, 0.65], [5081, 2, 8, 0.2], [9827, 3, 4, 0.2], [167, 3, 6, 1.1], [5812, 3, 6, 1.87], [94, 4, 5, 2.26], [1492, 1, 4, 0.42], [3495, 3, 19, 1.31], [57, 1, 4, 0.37], [12870, 1, 4, 2.33], [168, 3, 7, 0.29], [2049, 1, 4, 0.36], [3893, 1, 4, 0.28], [11234, 2, 4, 0.94], [3889, 1, 4, 0.28], [6097, 29, 4, 0.86], [3891, 1, 4, 0.28], [8651, 2, 5, 1.45], [2336, 3, 5, 0.99], [95, 3, 17, 1.16], [335, 3, 15, 1.11], [6097, 80, 4, 2.5], [192, 3, 10, 1.98], [6098, 29, 4, 1.52], [1490, 1, 5, 0.68], [11737, 2, 4, 0.84], [214, 3, 9, 0.55], [20927, 1, 4, 0.86], [998, 2, 4, 1.29], [9069, 1, 5, 1.09], [20498, 1, 5, 0.55], [8898, 3, 6, 2.67], [1622, 1, 5, 1.13], [6098, 80, 4, 2.49], [9760, 29, 4, 0.2], [1070, 7, 8, 0.66], [14017, 3, 5, 0.2], [9829, 3, 4, 1.31], [13260, 29, 4, 1.1], [997, 2, 4, 1.3], [13034, 3, 9, 1.01], [12924, 1, 4, 0.53], [22554, 10, 11, 0.23], [11116, 1, 4, 0.57], [20498, 3, 8, 0.35], [35, 1, 4, 2.06], [1243, 2, 4, 1.03], [5513, 2, 4, 0.57], [336, 15, 4, 0.2], [5811, 3, 4, 2.25], [996, 2, 5, 1.39], [9691, 1, 5, 2.16], [5946, 1, 4, 0.28], [5813, 3, 5, 1.57], [5086, 1, 8, 2.63], [8945, 3, 5, 1.09], [39, 1, 4, 2.06], [3049, 3, 6, 1.98], [1080, 3, 5, 0.2], [952, 4, 5, 2.73], [1413, 15, 5, 0.2], [11085, 2, 4, 1.02], [8557, 3, 4, 0.2], [20486, 3, 8, 2.24], [4076, 3, 4, 2.94], [9082, 3, 18, 0.83], [2424, 80, 4, 1.1], [215, 4, 5, 3.67], [34, 1, 4, 2.06], [1703, 2, 6, 1.63], [20486, 1, 4, 0.51], [11510, 3, 6, 0.46], [38, 1, 4, 2.06], [3900, 3, 4, 0.9], [23611, 3, 4, 0.87], [14037, 3, 4, 0.52], [972, 3, 5, 0.51], [8943, 3, 4, 0.61], [13023, 3, 6, 1.48], [8274, 3, 4, 0.53], [2854, 21, 13, 0.79], [14018, 3, 4, 0.2], [8104, 1, 4, 0.59], [6497, 1, 4, 0.82], [3047, 3, 4, 0.69], [11770, 1, 4, 1.44], [18, 1, 4, 0.58], [8672, 2, 280, 5.57], [305, 2, 146, 3.96], [6935, 2, 255, 5.78], [141, 2, 153, 3.56], [2049, 3, 541, 2.4], [12721, 2, 278, 3.19], [151, 1, 42, 2.19], [205, 2, 107, 2.98], [1776, 1, 102, 4.51], [362, 2, 74, 3.67], [146, 2, 137, 3.07], [145, 2, 152, 2.11], [593, 2, 226, 3.27], [8915, 2, 201, 1.63], [2328, 2, 135, 3.66], [8648, 2, 231, 4.54], [1777, 1, 97, 4.13], [3, 2, 112, 3.42], [5151, 2, 26, 1.8], [6936, 2, 255, 5.12], [8675, 2, 266, 3.36], [22247, 2, 278, 3.55], [1007, 2, 266, 2.19], [2778, 2, 139, 3.71], [10, 2, 109, 2.5], [88, 10, 564, 3.17], [8677, 3, 290, 5.73], [412, 1, 82, 4.16], [11681, 2, 281, 4.12], [10149, 3, 855, 5.91], [10825, 21, 643, 3.2], [2054, 3, 461, 4.78], [75, 2, 153, 2.22], [13028, 3, 145, 3.58], [147, 1, 92, 3.55], [361, 2, 153, 2.7], [413, 1, 84, 4.22], [2055, 3, 461, 3.13], [7004, 1, 55, 2.9], [2057, 3, 461, 4.92], [8676, 2, 280, 4.05], [411, 2, 107, 3.4], [308, 1, 165, 3.84], [61, 3, 110, 3.14], [432, 3, 293, 3.44], [1446, 2, 159, 1.99], [1124, 2, 184, 2.39], [45, 2, 111, 6.0], [7005, 1, 78, 2.9], [5081, 2, 189, 3.46], [9827, 3, 85, 3.53], [167, 3, 225, 3.97], [1492, 1, 39, 1.76], [3495, 3, 977, 4.47], [57, 1, 89, 1.66], [168, 3, 400, 4.08], [2049, 1, 16, 1.54], [3893, 1, 122, 2.42], [11234, 2, 192, 3.02], [3889, 1, 122, 2.42], [6097, 29, 37, 2.61], [3891, 1, 122, 2.42]]</t>
+  </si>
+  <si>
+    <t>[[305, 2, 7, 1.32], [8672, 2, 10, 2.68], [3, 2, 11, 2.18], [589, 2, 14, 0.55], [130, 1, 9, 1.43], [2049, 3, 27, 1.73], [205, 2, 7, 0.96], [144, 2, 7, 1.42], [12721, 2, 10, 3.06], [75, 2, 9, 1.86], [145, 2, 7, 1.0], [1776, 1, 7, 1.85], [8915, 2, 12, 0.5], [593, 2, 15, 1.83], [146, 2, 7, 1.75], [151, 1, 7, 0.71], [2778, 2, 11, 1.62], [1777, 1, 7, 2.1], [20252, 2, 7, 0.89], [8648, 2, 7, 5.0], [206, 2, 7, 1.6], [6936, 2, 15, 2.57], [2328, 2, 11, 1.55], [5151, 2, 7, 0.9], [88, 10, 21, 1.98], [141, 2, 7, 2.77], [8675, 2, 10, 1.76], [74, 1, 7, 3.53], [83, 2, 7, 0.85], [7004, 1, 7, 3.3], [1492, 1, 7, 0.81], [2054, 3, 7, 1.03], [1446, 2, 7, 2.98], [10825, 21, 13, 2.01], [362, 2, 7, 2.54], [2057, 3, 7, 0.88], [1007, 2, 11, 0.73], [345, 3, 7, 0.97], [432, 3, 7, 1.15], [7005, 1, 7, 2.68], [22247, 2, 13, 4.81], [11681, 2, 13, 3.81], [201, 3, 11, 0.87], [57, 1, 7, 1.34], [410, 1, 7, 2.85], [3889, 1, 7, 0.8], [308, 1, 17, 3.41], [10149, 3, 21, 2.8], [12870, 1, 7, 5.0], [1124, 2, 14, 0.68], [7036, 1, 7, 2.49], [35, 1, 7, 3.65], [167, 3, 9, 2.77], [9827, 3, 7, 3.12], [5081, 2, 14, 1.08], [8677, 3, 9, 1.84], [94, 4, 7, 3.35], [411, 2, 7, 1.37], [1504, 2, 7, 1.97], [3891, 1, 7, 2.38], [79, 1, 7, 1.19], [168, 3, 11, 3.71], [8676, 2, 7, 1.7], [3893, 1, 7, 2.63], [5812, 3, 10, 1.92], [9760, 29, 7, 1.41], [23, 1, 9, 2.81], [1490, 1, 7, 1.17], [412, 1, 7, 3.16], [3980, 4, 7, 2.74], [20927, 1, 7, 3.21], [45, 2, 7, 2.97], [361, 2, 9, 3.21], [1767, 25, 9, 1.17], [5208, 3, 16, 3.05], [1622, 1, 7, 3.2], [95, 3, 27, 1.28], [9069, 1, 7, 1.96], [8651, 2, 9, 3.54], [335, 3, 20, 0.93], [25, 1, 9, 2.73], [214, 3, 18, 1.26], [10574, 3, 10, 1.02], [413, 1, 7, 2.8], [2049, 1, 7, 1.19], [34, 1, 7, 3.81], [998, 2, 7, 2.83], [856, 1, 7, 1.01], [3495, 3, 16, 2.26], [8898, 3, 12, 3.12], [9691, 1, 7, 3.0], [1766, 25, 9, 4.01], [1070, 7, 15, 0.84], [11116, 1, 7, 3.57], [20498, 1, 7, 2.72], [38, 1, 7, 4.04], [997, 2, 7, 1.84], [5946, 1, 7, 2.23], [14017, 3, 9, 1.5], [1413, 15, 7, 0.83], [974, 3, 9, 2.64], [9829, 3, 7, 2.73], [152, 21, 7, 1.46], [1091, 1, 7, 1.75], [20498, 3, 12, 1.89], [39, 1, 7, 4.04], [82, 2, 7, 2.13], [14037, 3, 11, 1.09], [9372, 1, 7, 2.14], [5209, 3, 9, 3.05], [1080, 3, 9, 1.34], [5086, 1, 7, 4.63], [996, 2, 7, 4.34], [1767, 2, 7, 1.71], [3048, 3, 7, 3.93], [9828, 3, 7, 3.41], [972, 3, 8, 2.01], [13260, 29, 7, 2.71], [24, 1, 7, 2.54], [4203, 1, 7, 1.31], [5513, 2, 7, 2.11], [10780, 10, 7, 3.58], [5813, 3, 9, 3.29], [3981, 3, 17, 2.74], [202, 2, 7, 3.63], [8945, 3, 8, 2.81], [952, 4, 7, 4.41], [36, 1, 7, 4.04], [336, 15, 7, 0.92], [2878, 1, 7, 2.26], [13034, 3, 8, 2.88], [3900, 3, 7, 0.94], [23611, 3, 8, 4.42], [995, 2, 7, 2.41], [6497, 1, 7, 1.29], [14018, 3, 7, 0.89], [24257, 1, 7, 3.7], [9082, 3, 29, 2.75], [170, 3, 7, 3.64], [3980, 4, 570, 3.8], [20927, 1, 27, 4.05], [45, 2, 123, 5.03], [1767, 25, 175, 3.42], [5208, 3, 590, 4.62], [1622, 1, 111, 4.52], [95, 3, 1250, 3.81], [9069, 1, 124, 3.03], [8651, 2, 234, 4.6], [335, 3, 1472, 2.98], [214, 3, 732, 2.32], [10574, 3, 612, 2.09], [413, 1, 96, 4.36], [34, 1, 123, 4.88], [998, 2, 270, 3.89], [856, 1, 38, 2.07], [3495, 3, 1086, 4.69], [8898, 3, 301, 5.58], [1766, 25, 125, 4.94], [1070, 7, 646, 3.65], [11116, 1, 25, 4.33], [20498, 1, 110, 4.61], [38, 1, 123, 5.11], [997, 2, 285, 2.9], [5946, 1, 138, 4.28], [14017, 3, 203, 3.38], [1413, 15, 118, 1.9], [974, 3, 167, 4.45], [9829, 3, 72, 3.8], [1091, 1, 36, 3.0], [20498, 3, 659, 4.2], [39, 1, 123, 5.11], [9372, 1, 280, 3.21], [5209, 3, 590, 4.62], [1080, 3, 149, 3.89], [5086, 1, 154, 5.71], [996, 2, 82, 5.36], [1767, 2, 38, 3.42], [3048, 3, 304, 5.98], [9828, 3, 29, 4.22], [972, 3, 672, 3.65], [13260, 29, 81, 4.03], [24, 1, 125, 3.89], [4203, 1, 55, 3.36], [10780, 10, 391, 5.89], [5813, 3, 705, 4.36], [3981, 3, 1815, 4.05], [202, 2, 37, 4.53], [952, 4, 85, 5.73], [36, 1, 117, 5.11], [2878, 1, 86, 3.33], [13034, 3, 663, 4.48], [3900, 3, 49, 2.26], [23611, 3, 367, 5.48], [995, 2, 285, 3.48], [6497, 1, 44, 2.36], [14018, 3, 237, 1.96], [24257, 1, 70, 4.54], [9082, 3, 2907, 3.83], [170, 3, 410, 4.71]]</t>
+  </si>
+  <si>
+    <t>[[305, 2, 9, 1.32], [6935, 2, 11, 4.09], [2778, 2, 17, 1.18], [144, 2, 7, 1.04], [8915, 2, 10, 1.06], [6936, 2, 7, 3.27], [2775, 2, 7, 2.04], [205, 2, 9, 2.28], [8650, 2, 7, 3.41], [593, 2, 17, 2.02], [145, 2, 9, 1.42], [146, 2, 7, 1.4], [326, 2, 7, 1.02], [7036, 1, 7, 3.79], [5493, 2, 7, 0.73], [88, 10, 29, 3.07], [141, 2, 7, 1.29], [7004, 1, 7, 2.58], [1446, 2, 7, 1.5], [1124, 2, 9, 1.59], [9760, 29, 7, 1.89], [206, 2, 9, 1.58], [8853, 2, 7, 2.55], [8672, 2, 7, 3.25], [362, 2, 7, 3.0], [142, 2, 7, 2.28], [11685, 2, 11, 1.76], [2912, 1, 7, 3.73], [7886, 4, 7, 0.8], [8649, 2, 7, 3.04], [5165, 1, 7, 3.1], [12870, 1, 9, 4.32], [1622, 1, 7, 1.38], [2055, 3, 7, 1.06], [417, 2, 7, 2.02], [7573, 1, 14, 5.0], [7084, 3, 7, 3.55], [21793, 1, 7, 1.7], [7885, 4, 9, 1.47], [2054, 3, 7, 3.41], [523, 2, 7, 1.19], [10, 2, 9, 1.21], [9372, 1, 7, 2.39], [3891, 1, 7, 1.21], [75, 2, 7, 3.56], [10149, 3, 21, 2.81], [5208, 3, 11, 1.03], [9491, 21, 19, 1.74], [20927, 1, 9, 2.86], [35, 1, 9, 3.54], [997, 2, 7, 2.43], [12721, 2, 10, 3.06], [5165, 2, 8, 2.04], [3, 2, 9, 2.97], [33, 1, 7, 1.87], [998, 2, 7, 1.83], [94, 4, 7, 0.96], [7887, 4, 7, 1.12], [22247, 2, 7, 2.77], [996, 2, 7, 1.83], [972, 3, 10, 2.61], [34, 1, 7, 3.25], [6158, 2, 14, 1.56], [2805, 137, 7, 3.15], [2912, 2, 12, 3.73], [2424, 80, 7, 1.6], [38, 1, 7, 1.87], [8104, 1, 7, 3.06], [2336, 3, 8, 1.39], [8898, 3, 7, 1.44], [9690, 1, 7, 0.89], [12212, 29, 9, 1.15], [24257, 1, 7, 1.25], [39, 1, 7, 1.87], [11952, 1, 7, 1.58], [7567, 3, 7, 3.04], [2424, 29, 7, 2.71], [1414, 15, 7, 0.85], [192, 3, 15, 2.09], [8676, 2, 7, 3.25], [11770, 1, 7, 3.62], [3495, 3, 17, 3.02], [202, 2, 7, 2.58], [13928, 1, 7, 2.56], [3048, 3, 7, 2.02], [4032, 29, 7, 5.0], [23961, 3, 7, 3.68], [11490, 1, 7, 0.85], [161, 3, 11, 3.8], [5946, 1, 7, 0.67], [11772, 1, 7, 2.97], [1703, 2, 7, 0.81], [10407, 10, 15, 2.75], [74, 1, 7, 4.99], [10410, 10, 11, 2.51], [13023, 3, 8, 2.91], [1274, 1, 7, 1.55], [1519, 3, 24, 0.67], [24258, 1, 9, 2.7], [1523, 1, 7, 1.08], [21269, 3, 7, 5.0], [2331, 1, 7, 2.06], [11236, 2, 7, 1.19], [4253, 1, 7, 0.75], [5164, 1, 7, 1.99], [4076, 3, 7, 3.06], [3430, 15, 7, 1.29], [12764, 2, 8, 0.61], [6097, 80, 7, 1.37], [972, 1, 7, 2.2], [214, 3, 26, 1.25], [6097, 29, 7, 1.37], [10780, 10, 7, 2.56], [1080, 3, 7, 2.75], [8674, 2, 7, 1.69], [3047, 3, 7, 3.41], [13893, 2, 7, 2.25], [9081, 3, 12, 0.94], [11404, 2, 7, 0.81], [10408, 10, 8, 1.05], [8677, 3, 7, 2.5], [13034, 3, 7, 3.01], [3576, 29, 7, 2.56], [1243, 2, 7, 2.09], [12662, 1, 7, 1.02], [13264, 29, 7, 0.9], [2436, 4, 7, 1.58], [20486, 3, 7, 3.48], [6497, 1, 7, 1.87], [7704, 2, 7, 0.87], [13928, 2, 7, 2.56], [3334, 5, 7, 4.89], [11813, 1, 7, 1.69], [45, 2, 7, 1.84], [1277, 1, 7, 3.58], [9690, 1, 86, 2.09], [12212, 29, 119, 3.53], [24257, 1, 153, 2.7], [39, 1, 127, 3.07], [11952, 1, 230, 2.78], [7567, 3, 76, 4.57], [2424, 29, 38, 4.16], [1414, 15, 115, 2.05], [192, 3, 1309, 3.56], [8676, 2, 328, 4.45], [11770, 1, 250, 4.82], [3495, 3, 1058, 4.49], [202, 2, 84, 3.78], [13928, 1, 54, 3.76], [3048, 3, 297, 3.23], [4032, 29, 108, 6.0], [23961, 3, 340, 4.88], [11490, 1, 126, 2.05], [161, 3, 861, 4.99], [5946, 1, 144, 1.87], [11772, 1, 246, 4.17], [1703, 2, 191, 2.01], [10407, 10, 1373, 3.96], [74, 1, 215, 6.0], [10410, 10, 1373, 3.72], [13023, 3, 683, 4.12], [1274, 1, 90, 3.0], [1519, 3, 1076, 1.94], [1523, 1, 55, 2.28], [21269, 3, 340, 6.0], [2331, 1, 135, 3.26], [11236, 2, 255, 2.39], [4253, 1, 180, 2.2], [5164, 1, 54, 3.19], [4076, 3, 230, 4.26], [3430, 15, 80, 2.49], [12764, 2, 861, 1.8], [6097, 80, 81, 2.57], [972, 1, 115, 3.4], [6097, 29, 41, 2.57], [10780, 10, 436, 3.77], [1080, 3, 147, 3.95], [8674, 2, 328, 2.89], [3047, 3, 296, 5.09], [13893, 2, 316, 3.45], [9081, 3, 562, 2.15], [11404, 2, 121, 2.01], [10408, 10, 912, 2.26], [8677, 3, 340, 3.7], [13034, 3, 673, 4.22], [3576, 29, 35, 3.75], [1243, 2, 112, 3.29], [12662, 1, 71, 2.22], [13264, 29, 85, 2.1], [2436, 4, 134, 2.78], [20486, 3, 615, 4.68], [6497, 1, 43, 3.07], [7704, 2, 205, 2.07], [13928, 2, 27, 3.76], [3334, 5, 200, 6.0], [11813, 1, 365, 2.89], [45, 2, 125, 3.04], [1277, 1, 221, 4.78]]</t>
+  </si>
+  <si>
+    <t>[[326, 2, 7, 1.37], [11685, 2, 7, 3.6], [144, 2, 9, 2.0], [11681, 2, 9, 3.34], [589, 2, 8, 0.61], [2327, 2, 7, 0.94], [205, 2, 7, 0.99], [593, 2, 14, 1.01], [141, 2, 7, 1.85], [305, 2, 7, 1.23], [8915, 2, 8, 1.37], [8650, 2, 7, 2.25], [2328, 2, 7, 0.81], [151, 1, 7, 0.69], [6936, 2, 14, 4.75], [2778, 2, 11, 1.43], [2049, 3, 14, 1.17], [146, 2, 11, 1.81], [206, 2, 7, 1.82], [88, 10, 18, 2.29], [7004, 1, 7, 3.12], [9507, 3, 7, 0.69], [615, 2, 7, 0.94], [7036, 1, 7, 3.81], [145, 2, 9, 1.5], [1446, 2, 7, 1.73], [417, 2, 7, 0.93], [8853, 2, 7, 2.37], [362, 2, 7, 3.0], [248, 1, 7, 0.71], [523, 2, 9, 1.56], [2055, 3, 7, 4.17], [10993, 2, 9, 0.98], [142, 2, 7, 0.92], [75, 2, 9, 1.89], [616, 2, 7, 0.96], [3840, 1, 7, 0.75], [11737, 2, 7, 1.27], [2050, 3, 7, 4.19], [12870, 1, 7, 3.69], [12350, 1, 7, 3.09], [2054, 3, 7, 4.19], [2057, 3, 7, 3.77], [7084, 3, 7, 1.67], [13028, 3, 7, 1.25], [20927, 1, 7, 2.62], [7005, 1, 7, 1.54], [3, 2, 7, 1.0], [3982, 3, 19, 1.23], [10, 2, 9, 0.66], [997, 2, 7, 1.71], [94, 4, 7, 1.75], [21793, 1, 7, 3.79], [61, 3, 7, 4.31], [7885, 4, 9, 1.53], [3891, 1, 7, 0.87], [996, 2, 9, 3.03], [6158, 2, 7, 1.77], [998, 2, 7, 1.1], [8672, 2, 7, 2.68], [5165, 1, 7, 2.12], [9491, 21, 18, 3.13], [11739, 2, 7, 2.06], [2912, 1, 7, 3.72], [972, 3, 8, 1.64], [5165, 2, 8, 2.12], [7886, 4, 7, 0.9], [346, 3, 7, 0.88], [3980, 4, 7, 2.63], [98, 11, 16, 1.21], [10388, 2, 7, 2.43], [411, 2, 7, 1.75], [1492, 1, 7, 0.9], [346, 1, 7, 0.83], [7573, 1, 7, 4.14], [8677, 3, 7, 3.84], [83, 2, 7, 1.41], [5208, 3, 10, 2.74], [7567, 3, 7, 2.7], [410, 1, 7, 2.22], [22316, 3, 7, 0.98], [995, 2, 7, 1.79], [3981, 3, 21, 2.03], [9081, 3, 12, 3.65], [13928, 1, 7, 1.58], [22247, 2, 7, 2.36], [10386, 2, 7, 1.46], [9372, 1, 7, 2.16], [336, 15, 7, 1.06], [11770, 1, 7, 3.3], [308, 1, 7, 3.47], [10780, 10, 7, 3.49], [1622, 1, 7, 1.6], [11953, 1, 7, 1.85], [161, 3, 8, 2.28], [2912, 2, 8, 3.72], [23611, 3, 9, 3.81], [9082, 3, 33, 2.42], [5946, 1, 7, 1.64], [345, 3, 7, 0.96], [22317, 3, 7, 0.98], [192, 3, 20, 1.83], [11116, 1, 7, 3.1], [229, 1, 7, 3.09], [24257, 1, 7, 3.7], [37, 1, 7, 2.48], [82, 2, 7, 0.98], [972, 1, 7, 3.25], [11767, 1, 7, 1.27], [12271, 2, 7, 2.18], [7704, 2, 7, 3.27], [34, 1, 7, 2.19], [14037, 3, 7, 4.06], [8104, 1, 7, 3.07], [10410, 10, 10, 2.55], [10407, 10, 10, 2.59], [11085, 2, 9, 3.15], [11404, 2, 7, 0.81], [3048, 3, 7, 2.19], [10387, 2, 7, 4.13], [20498, 3, 8, 0.7], [74, 1, 7, 2.68], [38, 1, 7, 2.73], [1413, 15, 7, 0.77], [335, 3, 15, 0.89], [12721, 2, 7, 1.73], [2331, 1, 7, 2.15], [12338, 29, 7, 0.75], [215, 4, 7, 3.93], [4001, 3, 14, 2.07], [1523, 1, 7, 1.16], [4253, 1, 7, 1.69], [11510, 3, 8, 1.74], [8673, 2, 7, 4.37], [45, 2, 7, 2.76], [201, 3, 7, 0.96], [98, 11, 896, 2.34], [10388, 2, 234, 3.55], [411, 2, 117, 2.87], [1492, 1, 40, 2.03], [346, 1, 150, 2.21], [7573, 1, 376, 5.27], [8677, 3, 312, 4.97], [7567, 3, 75, 3.82], [410, 1, 25, 2.86], [22316, 3, 342, 2.11], [995, 2, 261, 2.91], [3981, 3, 1743, 3.18], [9081, 3, 448, 5.02], [13928, 1, 51, 2.71], [22247, 2, 276, 3.49], [10386, 2, 234, 2.59], [9372, 1, 258, 3.29], [336, 15, 119, 2.19], [11770, 1, 231, 4.43], [308, 1, 171, 4.6], [10780, 10, 396, 4.61], [1622, 1, 116, 2.73], [11953, 1, 215, 2.98], [161, 3, 805, 3.39], [2912, 2, 388, 4.84], [23611, 3, 349, 4.93], [9082, 3, 2517, 3.83], [5946, 1, 135, 2.77], [345, 3, 320, 2.09], [22317, 3, 342, 2.11], [192, 3, 1240, 3.19], [229, 1, 89, 4.22], [37, 1, 113, 3.86], [82, 2, 22, 1.82], [11767, 1, 174, 2.39], [12271, 2, 68, 3.3], [7704, 2, 179, 4.4], [34, 1, 113, 3.49], [14037, 3, 353, 5.18], [8104, 1, 210, 4.19], [10410, 10, 1285, 3.68], [10407, 10, 1285, 3.72], [11085, 2, 578, 4.27], [11404, 2, 114, 1.94], [3048, 3, 291, 3.31], [10387, 2, 234, 5.26], [20498, 3, 633, 1.83], [74, 1, 212, 3.81], [38, 1, 119, 3.86], [1413, 15, 107, 1.9], [335, 3, 1414, 2.0], [12721, 2, 307, 2.85], [2331, 1, 126, 3.28], [12338, 29, 57, 1.88], [215, 4, 41, 5.06], [4001, 3, 854, 3.19], [1523, 1, 51, 2.29], [4253, 1, 187, 2.82], [11510, 3, 630, 2.87], [8673, 2, 272, 5.5], [45, 2, 114, 3.88], [201, 3, 320, 2.09]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 34, 2.8], [362, 2, 11, 1.38], [2049, 3, 24, 0.5], [589, 2, 18, 0.5], [3, 2, 9, 1.97], [75, 2, 14, 1.51], [141, 2, 7, 2.0], [8672, 2, 15, 2.16], [1776, 1, 7, 1.12], [130, 1, 7, 1.02], [205, 2, 9, 1.95], [8915, 2, 10, 0.86], [151, 1, 7, 1.08], [11681, 2, 15, 5.0], [2778, 2, 10, 0.56], [305, 2, 7, 0.94], [1777, 1, 7, 2.22], [6936, 2, 10, 2.79], [8648, 2, 9, 3.71], [593, 2, 14, 2.33], [990, 2, 7, 1.0], [88, 10, 21, 1.94], [83, 2, 7, 0.96], [1007, 2, 15, 1.03], [345, 3, 9, 1.1], [5151, 2, 7, 1.71], [412, 1, 7, 3.14], [361, 2, 7, 2.88], [201, 3, 10, 1.01], [22247, 2, 9, 2.42], [21793, 1, 7, 3.62], [10149, 3, 25, 3.26], [45, 2, 7, 2.65], [12721, 2, 10, 2.24], [7004, 1, 7, 1.34], [10825, 21, 13, 2.1], [2054, 3, 9, 3.22], [167, 3, 9, 2.5], [413, 1, 7, 3.27], [2057, 3, 7, 3.22], [308, 1, 7, 2.71], [5005, 1, 7, 0.92], [74, 1, 7, 3.75], [6158, 2, 8, 2.62], [168, 3, 7, 1.9], [1446, 2, 7, 1.04], [346, 1, 7, 0.92], [432, 3, 7, 1.61], [13028, 3, 7, 1.61], [10, 2, 9, 2.16], [7036, 1, 9, 4.75], [3495, 3, 19, 1.65], [12870, 1, 14, 5.0], [214, 3, 15, 0.77], [335, 3, 18, 2.4], [5081, 2, 9, 0.93], [79, 1, 7, 0.73], [5208, 3, 13, 3.58], [9827, 3, 7, 1.98], [410, 1, 7, 1.54], [3889, 1, 7, 2.63], [1492, 1, 7, 0.81], [95, 3, 21, 3.55], [5812, 3, 10, 2.49], [94, 4, 7, 3.35], [3893, 1, 7, 1.67], [13260, 29, 7, 2.12], [23, 1, 7, 2.76], [1504, 2, 7, 2.78], [7005, 1, 7, 1.44], [1490, 1, 7, 2.48], [411, 2, 7, 1.66], [10993, 2, 7, 0.81], [3891, 1, 7, 2.52], [25, 1, 7, 2.67], [998, 2, 7, 2.66], [1124, 2, 12, 1.74], [3980, 4, 7, 2.76], [21269, 3, 7, 5.0], [8651, 2, 7, 0.67], [10574, 3, 9, 2.31], [9691, 1, 7, 4.14], [5086, 1, 9, 2.24], [856, 1, 7, 1.17], [2878, 1, 9, 3.32], [997, 2, 14, 3.52], [5660, 2, 7, 4.03], [8676, 2, 7, 1.94], [11914, 1, 12, 1.02], [20927, 1, 7, 1.75], [192, 3, 22, 4.99], [9829, 3, 7, 3.0], [1703, 2, 7, 3.63], [5209, 3, 9, 2.86], [8674, 2, 7, 3.61], [1622, 1, 10, 1.61], [9081, 3, 12, 0.73], [952, 4, 7, 5.0], [20498, 1, 7, 1.79], [5513, 2, 7, 1.88], [1070, 7, 13, 2.49], [996, 2, 11, 4.11], [8898, 3, 10, 5.0], [14037, 3, 9, 0.93], [346, 3, 8, 0.8], [1091, 1, 7, 1.35], [12661, 1, 7, 4.66], [20498, 3, 10, 3.76], [1519, 3, 26, 0.67], [6097, 29, 7, 2.33], [27, 1, 7, 1.53], [8274, 3, 9, 1.92], [24, 1, 7, 2.85], [13034, 3, 12, 3.48], [22317, 3, 8, 1.15], [4203, 1, 11, 1.27], [10529, 29, 7, 2.95], [11490, 1, 7, 0.98], [1413, 15, 7, 1.69], [336, 15, 7, 0.67], [6097, 80, 7, 1.27], [24664, 2, 13, 3.27], [11767, 1, 7, 1.15], [23611, 3, 7, 3.74], [34, 1, 7, 3.96], [9082, 3, 29, 3.0], [2104, 3, 12, 2.51], [6098, 80, 7, 3.18], [66, 1, 7, 0.87], [11769, 1, 7, 0.9], [5811, 3, 7, 2.13], [10780, 10, 7, 4.87], [6098, 29, 7, 2.0], [38, 1, 7, 3.97], [39, 1, 7, 3.97], [66, 16, 7, 0.9], [2109, 3, 18, 0.75], [1490, 1, 47, 3.43], [411, 2, 113, 2.6], [10993, 2, 56, 1.76], [3891, 1, 129, 3.47], [998, 2, 236, 5.57], [1124, 2, 174, 2.93], [3980, 4, 450, 3.97], [21269, 3, 290, 6.0], [8651, 2, 229, 1.61], [10574, 3, 505, 3.63], [9691, 1, 73, 5.2], [5086, 1, 182, 4.69], [856, 1, 34, 2.37], [997, 2, 236, 4.59], [5660, 2, 171, 4.98], [8676, 2, 280, 3.13], [11914, 1, 84, 3.85], [20927, 1, 28, 2.9], [192, 3, 1224, 5.98], [9829, 3, 64, 4.2], [1703, 2, 162, 5.19], [5209, 3, 535, 3.8], [8674, 2, 280, 4.56], [1622, 1, 92, 2.56], [9081, 3, 506, 1.67], [952, 4, 58, 6.0], [20498, 1, 92, 2.99], [1070, 7, 609, 3.44], [996, 2, 236, 5.79], [8898, 3, 290, 6.0], [14037, 3, 120, 1.91], [346, 3, 645, 1.75], [1091, 1, 47, 3.19], [12661, 1, 41, 5.76], [20498, 3, 570, 4.94], [1519, 3, 1615, 2.5], [6097, 29, 33, 3.51], [27, 1, 117, 2.47], [24, 1, 110, 4.06], [13034, 3, 578, 5.17], [22317, 3, 312, 3.06], [4203, 1, 44, 3.18], [10529, 29, 40, 4.5], [11490, 1, 113, 1.93], [1413, 15, 96, 3.22], [6097, 80, 74, 2.22], [24664, 2, 296, 4.21], [11767, 1, 154, 2.1], [23611, 3, 295, 4.95], [34, 1, 95, 4.88], [9082, 3, 2551, 3.92], [6098, 80, 76, 4.13], [66, 1, 40, 1.82], [11769, 1, 154, 2.1], [5811, 3, 615, 3.08], [10780, 10, 349, 5.82], [6098, 29, 38, 3.06], [38, 1, 114, 4.92], [39, 1, 95, 4.88], [66, 16, 72, 2.1], [2109, 3, 434, 2.02]]</t>
+  </si>
+  <si>
+    <t>[[589, 2, 12, 0.87], [88, 10, 21, 1.36], [8915, 2, 15, 1.06], [6935, 2, 14, 4.34], [2778, 2, 9, 0.55], [305, 2, 7, 1.07], [2328, 2, 14, 1.46], [615, 2, 7, 1.07], [326, 2, 17, 2.27], [6936, 2, 7, 3.27], [8648, 2, 7, 3.27], [8650, 2, 14, 5.0], [1446, 2, 7, 1.57], [434, 2, 7, 1.0], [205, 2, 7, 2.16], [10, 2, 9, 2.3], [144, 2, 9, 2.75], [151, 1, 7, 0.69], [94, 4, 7, 3.35], [7036, 1, 7, 2.33], [7886, 4, 7, 1.41], [141, 2, 11, 2.03], [1504, 2, 7, 2.78], [146, 2, 10, 2.31], [362, 2, 7, 3.0], [3891, 1, 7, 1.49], [21793, 1, 7, 2.4], [206, 2, 7, 1.85], [8649, 2, 7, 3.04], [11404, 2, 7, 0.81], [10993, 2, 7, 1.12], [5208, 3, 11, 2.22], [2054, 3, 9, 3.47], [3980, 4, 8, 1.72], [7005, 1, 7, 1.82], [11234, 2, 7, 2.7], [12870, 1, 7, 1.42], [145, 2, 7, 3.0], [5165, 1, 7, 2.04], [2912, 1, 7, 3.73], [8672, 2, 7, 3.25], [20927, 1, 7, 2.86], [10149, 3, 19, 2.29], [7887, 4, 7, 1.98], [998, 2, 7, 4.25], [9760, 29, 7, 1.89], [2436, 4, 7, 1.11], [417, 2, 7, 2.28], [997, 2, 7, 2.43], [142, 2, 7, 2.37], [2424, 80, 7, 3.03], [3, 2, 9, 1.95], [6158, 2, 7, 2.44], [9491, 21, 19, 1.74], [972, 3, 14, 2.61], [523, 2, 7, 1.19], [3495, 3, 18, 2.92], [11770, 1, 7, 3.62], [214, 3, 15, 0.69], [7573, 1, 16, 5.0], [11953, 1, 7, 1.93], [74, 1, 7, 3.83], [24257, 1, 7, 1.44], [5165, 2, 8, 2.04], [996, 2, 7, 1.83], [12721, 2, 7, 2.64], [2423, 80, 7, 1.39], [11772, 1, 7, 2.97], [8677, 3, 7, 2.5], [2912, 2, 12, 3.73], [6497, 1, 7, 1.87], [3981, 3, 20, 1.03], [1622, 1, 7, 3.19], [22317, 3, 7, 0.81], [8898, 3, 7, 1.44], [2438, 2, 8, 0.85], [2424, 29, 7, 1.56], [5434, 1, 7, 1.19], [823, 1, 7, 2.0], [4253, 1, 7, 0.75], [9372, 1, 7, 2.39], [3975, 4, 7, 2.36], [33, 1, 7, 1.87], [7567, 3, 7, 0.79], [6496, 1, 7, 2.51], [24258, 1, 9, 2.26], [2805, 137, 7, 3.15], [9081, 3, 12, 0.94], [9082, 3, 37, 3.08], [37, 1, 7, 1.5], [5946, 1, 7, 0.67], [11812, 1, 7, 0.92], [335, 3, 15, 0.89], [1519, 3, 20, 0.83], [8676, 2, 7, 3.25], [12764, 2, 8, 0.61], [10407, 10, 15, 2.75], [220, 4, 7, 3.47], [972, 1, 7, 2.2], [6097, 80, 7, 1.37], [23611, 3, 8, 3.74], [1243, 2, 7, 2.09], [10388, 2, 7, 2.07], [1703, 2, 7, 0.81], [161, 3, 11, 3.8], [1414, 15, 7, 0.85], [1274, 1, 7, 1.26], [95, 3, 18, 0.85], [38, 1, 7, 1.87], [11490, 1, 7, 0.85], [35, 1, 7, 1.87], [11236, 2, 7, 1.19], [22247, 2, 7, 2.43], [12212, 29, 7, 1.02], [4232, 80, 7, 2.51], [2104, 3, 15, 0.92], [1895, 3, 7, 4.81], [10631, 2, 7, 4.73], [8659, 1, 7, 1.64], [11813, 1, 7, 1.69], [13893, 2, 7, 2.25], [11235, 2, 7, 2.61], [10093, 3, 14, 1.76], [12501, 1, 7, 2.39], [8635, 3, 7, 2.45], [788, 2, 7, 1.02], [5164, 1, 7, 1.99], [8274, 3, 7, 2.04], [1309, 1, 7, 0.87], [4940, 1, 7, 0.85], [8104, 1, 7, 3.06], [10780, 10, 7, 2.56], [19931, 1, 7, 2.43], [13034, 3, 7, 3.01], [10386, 2, 7, 4.24], [11942, 29, 7, 2.27], [5151, 2, 7, 1.98], [22317, 3, 329, 2.26], [8898, 3, 339, 2.63], [2438, 2, 739, 2.04], [2424, 29, 40, 2.76], [5434, 1, 57, 2.39], [823, 1, 46, 3.2], [4253, 1, 199, 1.95], [9372, 1, 272, 3.59], [3975, 4, 557, 3.56], [33, 1, 127, 3.07], [7567, 3, 81, 1.99], [6496, 1, 47, 3.71], [24258, 1, 32, 2.93], [2805, 137, 200, 4.35], [9081, 3, 562, 2.15], [9082, 3, 2833, 4.25], [37, 1, 127, 2.7], [5946, 1, 144, 1.87], [11812, 1, 277, 2.12], [335, 3, 1511, 2.09], [1519, 3, 567, 1.72], [8676, 2, 328, 4.45], [12764, 2, 861, 1.8], [10407, 10, 1373, 3.96], [220, 4, 52, 4.67], [972, 1, 115, 3.4], [6097, 80, 81, 2.57], [23611, 3, 364, 4.94], [1243, 2, 112, 3.29], [10388, 2, 250, 3.27], [1703, 2, 191, 2.01], [161, 3, 861, 4.99], [1414, 15, 115, 2.05], [1274, 1, 95, 2.46], [95, 3, 1307, 2.04], [38, 1, 127, 3.07], [11490, 1, 126, 2.05], [35, 1, 127, 3.07], [11236, 2, 255, 2.39], [22247, 2, 326, 3.63], [12212, 29, 139, 2.22], [4232, 80, 179, 3.71], [2104, 3, 393, 2.13], [1895, 3, 340, 6.0], [10631, 2, 238, 5.93], [8659, 1, 139, 2.84], [11813, 1, 365, 2.89], [13893, 2, 316, 3.45], [11235, 2, 227, 3.81], [10093, 3, 951, 2.97], [12501, 1, 343, 3.6], [788, 2, 43, 2.08], [5164, 1, 54, 3.19], [1309, 1, 60, 2.07], [4940, 1, 140, 2.05], [8104, 1, 226, 4.27], [10780, 10, 436, 3.77], [19931, 1, 472, 3.62], [13034, 3, 673, 4.22], [10386, 2, 250, 5.44], [11942, 29, 112, 3.47], [5151, 2, 28, 3.18]]</t>
+  </si>
+  <si>
+    <t>[[305, 2, 7, 1.23], [2778, 2, 11, 1.07], [6936, 2, 11, 3.69], [205, 2, 9, 0.98], [88, 10, 14, 0.72], [144, 2, 11, 2.59], [1504, 2, 7, 1.9], [589, 2, 8, 0.61], [326, 2, 14, 1.69], [8915, 2, 8, 1.95], [8650, 2, 9, 2.73], [7036, 1, 7, 3.33], [593, 2, 10, 1.23], [2775, 2, 9, 2.0], [141, 2, 9, 1.83], [206, 2, 7, 1.75], [3980, 4, 7, 2.37], [7004, 1, 7, 2.52], [3891, 1, 7, 1.24], [2050, 3, 7, 4.09], [8853, 2, 7, 4.22], [7885, 4, 9, 1.27], [7886, 4, 9, 1.0], [2328, 2, 7, 0.81], [146, 2, 9, 2.86], [2055, 3, 9, 4.2], [2054, 3, 7, 3.68], [10, 2, 9, 0.66], [5491, 2, 7, 0.69], [362, 2, 9, 3.06], [8672, 2, 7, 2.43], [12870, 1, 9, 3.96], [8649, 2, 7, 3.04], [10993, 2, 9, 1.56], [3975, 4, 7, 2.76], [2057, 3, 7, 5.0], [21793, 1, 7, 3.79], [12349, 1, 7, 3.09], [5165, 1, 7, 2.12], [1446, 2, 7, 2.21], [13028, 3, 7, 1.25], [3982, 3, 21, 2.77], [5208, 3, 10, 2.74], [75, 2, 7, 1.14], [2991, 3, 7, 4.18], [523, 2, 7, 2.23], [145, 2, 7, 2.98], [7005, 1, 7, 1.87], [94, 4, 7, 3.35], [3495, 3, 21, 3.84], [11404, 2, 7, 0.81], [20927, 1, 7, 3.14], [997, 2, 7, 3.28], [6158, 2, 9, 3.62], [192, 3, 33, 2.81], [2912, 1, 7, 3.72], [82, 2, 7, 1.52], [22316, 3, 9, 1.23], [417, 2, 7, 0.92], [5165, 2, 8, 2.12], [7567, 3, 7, 2.7], [998, 2, 7, 3.28], [11769, 1, 9, 2.16], [389, 4, 7, 2.12], [1492, 1, 7, 1.17], [11953, 1, 7, 1.85], [4176, 4, 9, 3.74], [346, 3, 7, 2.21], [996, 2, 9, 3.58], [11767, 1, 7, 1.27], [5946, 1, 7, 1.64], [6496, 1, 7, 0.94], [8677, 3, 7, 3.84], [37, 1, 7, 2.89], [12721, 2, 7, 1.73], [972, 3, 8, 3.25], [4253, 1, 7, 1.69], [74, 1, 7, 2.68], [11490, 1, 7, 1.52], [22317, 3, 9, 1.67], [411, 2, 7, 1.75], [12212, 29, 9, 0.94], [2104, 3, 10, 0.94], [1413, 15, 7, 1.12], [345, 3, 7, 0.96], [3979, 3, 8, 2.31], [336, 15, 7, 2.19], [11085, 2, 9, 3.42], [2912, 2, 8, 3.72], [8121, 3, 7, 1.17], [1274, 1, 7, 1.94], [201, 3, 9, 2.61], [1277, 1, 7, 3.58], [14037, 3, 7, 4.04], [3, 2, 7, 1.48], [13023, 3, 7, 2.91], [21269, 3, 7, 3.75], [823, 1, 7, 0.92], [38, 1, 7, 2.73], [6494, 1, 7, 0.85], [8673, 2, 7, 4.6], [36, 1, 7, 2.89], [12271, 2, 7, 2.18], [5209, 3, 9, 2.74], [9784, 1, 7, 2.5], [10408, 10, 8, 2.29], [8676, 2, 7, 2.79], [1414, 15, 7, 0.85], [22247, 2, 7, 2.11], [2805, 137, 8, 4.23], [20498, 3, 8, 0.7], [34, 1, 7, 2.73], [9081, 3, 12, 1.06], [3577, 25, 7, 1.29], [95, 3, 18, 0.91], [10936, 2, 7, 2.38], [2878, 1, 7, 2.5], [24257, 1, 7, 2.32], [11812, 1, 7, 0.92], [10388, 2, 7, 2.43], [346, 1, 7, 0.9], [79, 1, 7, 0.83], [13928, 1, 7, 1.58], [161, 3, 8, 2.28], [13035, 3, 7, 2.54], [491, 10, 12, 1.58], [83, 2, 7, 0.79], [3576, 25, 7, 1.27], [10407, 10, 10, 2.59], [1523, 1, 7, 1.16], [19047, 3, 7, 2.58], [9069, 1, 7, 1.46], [9082, 3, 29, 2.42], [13244, 1, 7, 0.77], [972, 1, 7, 1.77], [7704, 2, 7, 1.96], [10937, 2, 7, 2.38], [37, 1, 113, 4.02], [12721, 2, 307, 2.85], [4253, 1, 187, 2.82], [74, 1, 212, 3.81], [11490, 1, 39, 2.42], [22317, 3, 324, 3.88], [411, 2, 117, 2.87], [12212, 29, 111, 2.57], [2104, 3, 368, 2.06], [1413, 15, 96, 2.5], [345, 3, 320, 2.09], [3979, 3, 769, 3.68], [336, 15, 40, 3.41], [11085, 2, 549, 5.56], [2912, 2, 388, 4.84], [8121, 3, 285, 2.55], [1274, 1, 80, 3.32], [201, 3, 304, 4.81], [1277, 1, 207, 4.71], [14037, 3, 318, 5.42], [3, 2, 125, 2.6], [13023, 3, 607, 4.28], [21269, 3, 318, 4.88], [823, 1, 44, 2.05], [38, 1, 113, 3.86], [6494, 1, 56, 1.97], [8673, 2, 286, 5.72], [36, 1, 119, 4.02], [12271, 2, 68, 3.3], [9784, 1, 77, 3.63], [10408, 10, 837, 3.42], [8676, 2, 307, 3.92], [1414, 15, 107, 1.98], [22247, 2, 307, 3.24], [2805, 137, 185, 5.35], [20498, 3, 633, 1.83], [34, 1, 119, 3.86], [9081, 3, 526, 2.18], [3577, 25, 95, 2.42], [95, 3, 1212, 2.06], [10936, 2, 144, 3.5], [24257, 1, 149, 3.45], [11812, 1, 259, 2.04], [10388, 2, 234, 3.55], [346, 1, 167, 2.03], [79, 1, 52, 1.96], [13928, 1, 51, 2.71], [161, 3, 805, 3.39], [13035, 3, 324, 3.67], [491, 10, 478, 2.71], [83, 2, 26, 1.74], [3576, 25, 109, 2.4], [10407, 10, 1285, 3.72], [1523, 1, 51, 2.29], [19047, 3, 323, 3.71], [9069, 1, 132, 2.58], [9082, 3, 2650, 3.58], [13244, 1, 53, 1.9], [972, 1, 107, 2.9], [7704, 2, 189, 3.09], [10937, 2, 144, 3.5]]</t>
+  </si>
+  <si>
+    <t>[[141, 2, 7, 0.63], [362, 2, 7, 0.85], [361, 2, 7, 1.03], [8650, 2, 7, 3.29], [5491, 2, 7, 1.02], [5493, 2, 7, 0.98], [11685, 2, 14, 2.31], [417, 2, 7, 0.96], [326, 2, 7, 1.43], [8672, 2, 9, 3.15], [6935, 2, 19, 4.24], [205, 2, 7, 0.69], [1124, 2, 10, 1.84], [11681, 2, 13, 1.4], [11838, 2, 9, 3.23], [12721, 2, 13, 1.73], [248, 1, 7, 1.48], [8915, 2, 7, 0.98], [11837, 2, 7, 2.54], [142, 2, 7, 1.05], [6936, 2, 11, 2.52], [2778, 2, 11, 1.59], [1446, 2, 7, 2.0], [8676, 2, 7, 2.33], [21793, 1, 8, 3.06], [305, 2, 9, 2.69], [22247, 2, 7, 2.12], [11835, 2, 7, 2.89], [616, 2, 9, 1.06], [593, 2, 8, 1.45], [411, 2, 7, 1.71], [10574, 3, 10, 1.03], [990, 2, 7, 0.9], [8673, 2, 9, 2.91], [2775, 2, 7, 0.92], [145, 2, 7, 1.75], [6158, 2, 11, 1.35], [11836, 2, 7, 3.44], [2055, 3, 7, 1.6], [3495, 3, 21, 3.02], [88, 10, 16, 1.33], [10149, 3, 21, 2.23], [75, 2, 7, 1.36], [146, 2, 7, 1.75], [2054, 3, 7, 1.54], [2057, 3, 7, 1.6], [7705, 2, 7, 1.4], [61, 3, 7, 0.69], [7885, 4, 7, 1.31], [2424, 29, 7, 2.5], [7704, 2, 7, 2.99], [144, 2, 7, 1.75], [5165, 1, 7, 1.66], [2859, 15, 7, 1.12], [2423, 29, 7, 1.82], [2423, 80, 7, 1.82], [201, 3, 9, 2.66], [308, 1, 17, 5.0], [1414, 15, 7, 0.85], [335, 3, 17, 0.93], [7706, 2, 7, 1.52], [60, 3, 9, 1.26], [9126, 1, 7, 2.73], [13028, 3, 7, 3.9], [2424, 80, 7, 2.48], [214, 3, 15, 1.04], [1519, 3, 15, 0.72], [345, 3, 7, 0.9], [13034, 3, 9, 2.71], [13023, 3, 10, 2.77], [11770, 1, 7, 3.87], [2703, 3, 7, 3.27], [432, 3, 7, 2.72], [410, 1, 7, 1.0], [6494, 1, 7, 3.29], [3430, 15, 7, 1.54], [94, 4, 7, 0.92], [1886, 2, 7, 0.8], [1492, 1, 7, 1.67], [13928, 1, 7, 1.44], [20927, 1, 7, 2.01], [3893, 1, 7, 2.98], [3891, 1, 7, 2.98], [2331, 1, 7, 3.16], [3981, 3, 13, 0.91], [13033, 3, 8, 1.19], [11811, 1, 7, 1.93], [11952, 1, 7, 2.52], [9690, 1, 7, 1.04], [11089, 1, 7, 0.89], [5733, 2, 8, 2.04], [6097, 80, 7, 2.25], [952, 4, 7, 2.96], [7886, 4, 9, 1.09], [5812, 3, 7, 2.91], [1274, 1, 7, 2.27], [1309, 1, 7, 2.19], [22558, 3, 7, 4.18], [944, 15, 7, 0.75], [5946, 1, 7, 2.98], [114, 3, 7, 0.69], [7708, 2, 7, 1.52], [105, 3, 7, 0.67], [10410, 10, 10, 2.42], [95, 3, 13, 1.87], [10407, 10, 11, 2.42], [3478, 2, 7, 1.98], [5584, 3, 7, 2.72], [7703, 2, 7, 1.4], [3980, 4, 7, 2.49], [8274, 3, 7, 2.04], [9082, 3, 24, 2.83], [3889, 1, 7, 2.98], [13264, 29, 7, 0.94], [20555, 2, 7, 0.87], [10408, 10, 10, 2.37], [192, 3, 21, 4.0], [10398, 2, 7, 2.55], [5811, 3, 7, 4.0], [2805, 137, 10, 5.0], [7005, 1, 7, 2.01], [823, 1, 7, 4.72], [5165, 2, 8, 1.48], [6630, 3, 7, 2.41], [11603, 2, 7, 0.69], [963, 3, 7, 3.23], [13263, 29, 7, 1.06], [6497, 1, 7, 3.32], [21003, 2, 7, 3.61], [12229, 2, 7, 1.35], [14041, 3, 8, 1.12], [13928, 2, 7, 1.44], [10516, 3, 7, 2.2], [9491, 21, 16, 5.0], [186, 3, 12, 2.32], [13034, 3, 629, 4.02], [13023, 3, 629, 4.08], [11770, 1, 228, 5.18], [2703, 3, 305, 4.58], [432, 3, 309, 4.03], [410, 1, 112, 2.31], [6494, 1, 51, 4.6], [3430, 15, 73, 2.85], [94, 4, 132, 2.23], [1886, 2, 167, 2.11], [1492, 1, 39, 2.98], [13928, 1, 51, 2.75], [20927, 1, 84, 3.33], [3893, 1, 129, 4.29], [3891, 1, 129, 4.29], [2331, 1, 124, 4.47], [3981, 3, 1788, 2.23], [13033, 3, 629, 2.49], [11811, 1, 480, 3.25], [11952, 1, 210, 3.83], [9690, 1, 80, 2.35], [11089, 1, 184, 2.21], [5733, 2, 20, 3.04], [6097, 80, 75, 3.56], [952, 4, 79, 4.27], [7886, 4, 38, 1.84], [5812, 3, 629, 4.22], [1274, 1, 87, 3.58], [1309, 1, 55, 3.5], [22558, 3, 481, 5.49], [944, 15, 18, 1.75], [5946, 1, 129, 4.29], [114, 3, 66, 1.44], [7708, 2, 187, 2.83], [105, 3, 66, 1.42], [10410, 10, 1265, 3.72], [95, 3, 1170, 3.18], [10407, 10, 1265, 3.72], [3478, 2, 80, 3.29], [5584, 3, 244, 4.04], [7703, 2, 187, 2.71], [3980, 4, 513, 3.8], [9082, 3, 2608, 4.17], [3889, 1, 129, 4.29], [13264, 29, 77, 2.25], [20555, 2, 61, 2.19], [10408, 10, 824, 3.68], [192, 3, 1407, 5.3], [10398, 2, 152, 3.86], [5811, 3, 469, 5.26], [2805, 137, 189, 6.0], [7005, 1, 84, 3.33], [823, 1, 39, 6.0], [5165, 2, 406, 2.79], [6630, 3, 101, 3.73], [963, 3, 404, 4.54], [13263, 29, 76, 2.37], [6497, 1, 38, 4.63], [21003, 2, 302, 4.93], [12229, 2, 160, 2.66], [14041, 3, 732, 2.43], [13928, 2, 25, 2.75], [10516, 3, 620, 3.5], [9491, 21, 2196, 6.0], [186, 3, 699, 3.64]]</t>
+  </si>
+  <si>
+    <t>[[2778, 2, 26, 1.08], [305, 2, 9, 1.46], [6936, 2, 14, 3.6], [8672, 2, 9, 3.15], [2775, 2, 9, 1.39], [8853, 2, 7, 1.6], [145, 2, 9, 2.25], [2776, 2, 7, 2.04], [12721, 2, 10, 2.22], [2327, 2, 11, 1.57], [361, 2, 7, 0.77], [146, 2, 11, 1.9], [8675, 2, 8, 1.61], [11681, 2, 16, 2.3], [141, 2, 7, 1.46], [8673, 2, 11, 3.16], [205, 2, 9, 2.89], [308, 1, 17, 2.16], [8676, 2, 7, 2.33], [1124, 2, 12, 1.74], [11835, 2, 7, 3.52], [144, 2, 9, 2.81], [417, 2, 7, 2.37], [9507, 3, 7, 0.94], [8650, 2, 14, 4.38], [11837, 2, 7, 3.18], [8648, 2, 7, 3.23], [3, 2, 7, 2.68], [6097, 80, 9, 3.81], [2423, 29, 7, 2.93], [6097, 29, 7, 3.83], [6497, 1, 7, 3.32], [11836, 2, 7, 3.35], [990, 2, 7, 1.0], [593, 2, 8, 2.73], [6098, 80, 7, 3.69], [88, 10, 16, 1.33], [11739, 2, 7, 1.37], [523, 2, 7, 1.71], [2423, 80, 7, 1.71], [13260, 29, 7, 2.7], [8915, 2, 7, 0.87], [6494, 1, 7, 3.29], [6158, 2, 11, 1.35], [326, 2, 7, 1.18], [75, 2, 7, 3.25], [1339, 1, 7, 0.83], [378, 2, 7, 2.53], [411, 2, 7, 1.42], [1492, 1, 7, 1.67], [151, 1, 7, 1.25], [335, 3, 17, 0.93], [1050, 2, 7, 1.64], [2859, 15, 7, 1.21], [6496, 1, 7, 1.27], [61, 3, 17, 1.43], [13264, 29, 7, 1.0], [1049, 2, 7, 2.12], [345, 3, 7, 1.02], [10149, 3, 21, 2.23], [7704, 2, 7, 2.14], [964, 15, 9, 2.57], [432, 3, 7, 3.18], [1243, 2, 7, 2.2], [13259, 29, 13, 1.59], [22558, 3, 7, 4.18], [7705, 2, 7, 4.26], [201, 3, 7, 1.96], [5208, 3, 13, 3.62], [2912, 1, 7, 3.91], [186, 3, 12, 1.62], [229, 1, 7, 2.59], [21793, 1, 8, 3.19], [2438, 1, 7, 1.64], [12229, 2, 7, 0.87], [13928, 1, 7, 1.37], [3478, 2, 7, 1.6], [7706, 2, 7, 2.37], [10407, 10, 11, 2.42], [11738, 2, 7, 1.81], [2703, 3, 7, 3.27], [9507, 1, 7, 0.85], [11844, 2, 7, 1.21], [11490, 1, 7, 1.58], [7036, 1, 7, 1.46], [94, 4, 7, 0.92], [11687, 2, 7, 1.73], [1886, 2, 7, 0.8], [11404, 2, 7, 0.81], [114, 3, 7, 1.05], [159, 16, 7, 0.9], [10408, 10, 10, 2.37], [956, 2, 7, 1.0], [7708, 2, 7, 2.37], [20927, 1, 7, 3.2], [2438, 2, 8, 1.35], [10406, 10, 12, 2.42], [9065, 2, 7, 1.5], [11689, 2, 7, 1.71], [12870, 1, 7, 1.89], [22125, 2, 7, 0.69], [152, 21, 7, 0.96], [11690, 2, 7, 1.24], [7005, 1, 7, 2.18], [1274, 1, 7, 2.89], [2991, 3, 7, 4.18], [11161, 1, 10, 3.09], [13259, 25, 7, 1.59], [5769, 3, 10, 0.93], [2805, 137, 10, 2.86], [159, 1, 7, 0.87], [4253, 1, 7, 2.24], [3495, 3, 21, 3.02], [5584, 3, 7, 2.72], [7007, 1, 7, 2.46], [5976, 1, 7, 4.45], [9690, 1, 7, 0.98], [9239, 29, 7, 2.67], [9209, 29, 8, 3.37], [11811, 1, 7, 1.93], [9491, 21, 16, 2.85], [9239, 25, 7, 2.69], [7886, 4, 9, 1.11], [8600, 1, 7, 1.87], [5769, 1, 7, 0.89], [7567, 3, 7, 1.6], [96, 11, 24, 1.93], [24257, 1, 7, 2.0], [95, 3, 13, 0.69], [247, 1, 7, 4.85], [21269, 3, 7, 5.0], [20555, 2, 7, 0.87], [13198, 29, 7, 2.71], [1691, 1, 7, 4.41], [5209, 3, 8, 3.62], [9372, 1, 7, 2.7], [229, 1, 87, 3.91], [21793, 1, 261, 4.51], [2438, 1, 57, 2.95], [12229, 2, 161, 2.19], [13928, 1, 51, 2.68], [3478, 2, 81, 2.91], [7706, 2, 187, 3.68], [10407, 10, 1265, 3.72], [11738, 2, 23, 2.82], [2703, 3, 305, 4.58], [9507, 1, 13, 1.85], [11844, 2, 292, 2.51], [11490, 1, 115, 2.89], [7036, 1, 135, 2.77], [94, 4, 132, 2.23], [11687, 2, 319, 3.05], [1886, 2, 167, 2.11], [11404, 2, 70, 2.01], [114, 3, 260, 2.36], [159, 16, 63, 2.15], [10408, 10, 824, 3.68], [956, 2, 115, 2.32], [7708, 2, 187, 3.68], [20927, 1, 42, 4.32], [2438, 2, 680, 2.65], [10406, 10, 1897, 3.76], [9065, 2, 319, 2.82], [11689, 2, 319, 3.03], [12870, 1, 148, 3.2], [22125, 2, 50, 1.94], [11690, 2, 319, 2.56], [7005, 1, 83, 3.49], [1274, 1, 86, 4.2], [2991, 3, 170, 5.49], [11161, 1, 528, 4.41], [13259, 25, 74, 2.9], [5769, 3, 1007, 2.65], [2805, 137, 182, 4.17], [159, 1, 32, 2.12], [4253, 1, 178, 3.56], [3495, 3, 1026, 4.33], [5584, 3, 244, 4.04], [7007, 1, 83, 3.77], [5976, 1, 161, 5.76], [9690, 1, 80, 2.29], [9239, 29, 30, 3.99], [9209, 29, 35, 4.68], [11811, 1, 480, 3.25], [9491, 21, 2122, 4.14], [9239, 25, 89, 4.0], [8600, 1, 149, 3.18], [5769, 1, 65, 2.2], [7567, 3, 74, 2.91], [96, 11, 450, 3.05], [24257, 1, 149, 3.31], [95, 3, 1192, 1.98], [247, 1, 80, 6.0], [21269, 3, 313, 6.0], [20555, 2, 61, 2.18], [13198, 29, 66, 4.02], [1691, 1, 92, 5.72], [5209, 3, 559, 4.95], [9372, 1, 256, 4.01]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 9, 2.15], [141, 2, 11, 0.92], [2778, 2, 13, 1.44], [361, 2, 11, 1.1], [6935, 2, 28, 4.5], [205, 2, 7, 2.48], [12721, 2, 17, 3.52], [8676, 2, 7, 1.69], [417, 2, 11, 1.1], [2049, 3, 26, 0.5], [3, 2, 11, 2.93], [248, 1, 7, 0.92], [8675, 2, 9, 1.81], [22247, 2, 7, 1.93], [6936, 2, 11, 1.9], [523, 2, 7, 1.77], [305, 2, 7, 1.37], [8650, 2, 9, 3.44], [11838, 2, 7, 3.71], [2328, 2, 7, 2.32], [2776, 2, 7, 2.33], [8648, 2, 7, 3.23], [2327, 2, 7, 1.48], [8853, 2, 7, 1.6], [11739, 2, 7, 1.46], [11837, 2, 7, 3.72], [6497, 1, 7, 3.32], [411, 2, 7, 1.71], [412, 1, 7, 2.04], [2805, 137, 10, 2.37], [6097, 80, 7, 3.95], [6097, 29, 7, 1.89], [11835, 2, 7, 3.54], [146, 2, 7, 1.75], [583, 2, 7, 1.78], [326, 2, 7, 1.18], [10149, 3, 21, 1.63], [145, 2, 7, 1.75], [11836, 2, 7, 3.32], [144, 2, 7, 1.75], [75, 2, 7, 3.48], [10574, 3, 10, 1.5], [6494, 1, 7, 3.29], [2055, 3, 7, 2.71], [2057, 3, 7, 3.45], [2422, 29, 7, 1.94], [6496, 1, 7, 1.29], [2054, 3, 7, 2.68], [6098, 80, 7, 2.01], [6098, 29, 7, 1.14], [1243, 2, 7, 2.5], [1886, 2, 7, 0.8], [8915, 2, 7, 0.87], [21793, 1, 8, 3.19], [1492, 1, 7, 1.67], [944, 15, 7, 0.73], [247, 1, 7, 1.17], [3478, 2, 7, 1.66], [7084, 3, 7, 4.25], [5165, 1, 7, 1.66], [2859, 15, 7, 1.12], [6158, 2, 11, 1.62], [335, 3, 17, 0.93], [201, 3, 7, 1.44], [192, 3, 21, 3.69], [13928, 1, 7, 1.33], [5208, 3, 13, 3.64], [3934, 5, 12, 2.91], [5812, 3, 7, 2.0], [107, 2, 7, 1.31], [11489, 1, 7, 2.39], [24722, 2, 9, 1.37], [4253, 1, 7, 2.24], [94, 4, 7, 0.92], [1519, 3, 15, 0.72], [186, 3, 12, 1.62], [214, 3, 15, 1.04], [9491, 21, 16, 2.29], [5811, 3, 7, 4.0], [1703, 2, 7, 1.39], [1050, 2, 7, 1.7], [11767, 1, 7, 1.64], [5813, 3, 8, 2.0], [8938, 2, 7, 1.94], [61, 3, 7, 0.85], [1309, 1, 7, 2.19], [10398, 2, 7, 2.77], [2991, 3, 7, 4.18], [3495, 3, 21, 3.02], [13260, 29, 7, 3.04], [2438, 2, 8, 1.35], [11769, 1, 7, 1.64], [11671, 1, 7, 3.34], [8599, 1, 7, 5.0], [11811, 1, 7, 1.93], [229, 1, 7, 2.59], [8943, 3, 7, 1.38], [19687, 1, 7, 2.33], [2104, 3, 10, 0.86], [13928, 2, 7, 1.33], [1049, 2, 7, 1.7], [7036, 1, 7, 1.46], [5584, 3, 7, 2.72], [10124, 1, 7, 4.18], [7004, 1, 7, 2.39], [955, 2, 7, 0.85], [11808, 1, 7, 3.57], [9690, 1, 7, 0.89], [22573, 2, 7, 2.08], [18964, 1, 7, 2.18], [3334, 5, 7, 2.07], [6575, 3, 7, 1.37], [8274, 3, 7, 2.04], [20927, 1, 7, 3.58], [45, 2, 7, 4.57], [1523, 1, 7, 4.47], [9239, 29, 7, 2.67], [4001, 3, 17, 2.16], [2438, 1, 7, 1.37], [105, 3, 7, 0.77], [11678, 1, 7, 3.09], [13258, 29, 13, 3.2], [1277, 1, 7, 3.68], [19685, 1, 7, 2.73], [1701, 2, 7, 3.48], [11886, 2, 7, 1.41], [3477, 2, 7, 2.35], [7567, 3, 7, 2.27], [21269, 3, 7, 5.0], [9209, 29, 8, 4.73], [5165, 2, 8, 1.48], [3984, 3, 8, 1.07], [10181, 26, 8, 0.81], [8635, 3, 7, 2.45], [7005, 1, 7, 2.56], [3934, 5, 549, 4.23], [5812, 3, 626, 3.32], [107, 2, 48, 2.62], [24722, 2, 61, 2.62], [4253, 1, 178, 3.56], [94, 4, 132, 2.23], [1519, 3, 652, 1.72], [186, 3, 703, 2.92], [214, 3, 692, 2.34], [9491, 21, 2235, 3.57], [5811, 3, 469, 5.26], [1703, 2, 174, 2.71], [1050, 2, 30, 2.45], [11767, 1, 171, 2.96], [5813, 3, 626, 3.32], [8938, 2, 202, 3.25], [61, 3, 201, 2.41], [1309, 1, 55, 3.5], [10398, 2, 155, 4.08], [2991, 3, 170, 5.49], [3495, 3, 1026, 4.33], [13260, 29, 76, 4.35], [2438, 2, 680, 2.65], [11769, 1, 171, 2.96], [11671, 1, 315, 4.64], [8599, 1, 148, 6.0], [11811, 1, 480, 3.25], [229, 1, 87, 3.91], [8943, 3, 401, 2.69], [19687, 1, 32, 3.64], [2104, 3, 362, 2.17], [13928, 2, 25, 2.64], [1049, 2, 30, 2.45], [7036, 1, 135, 2.77], [5584, 3, 244, 4.04], [10124, 1, 107, 5.49], [7004, 1, 83, 3.7], [955, 2, 115, 2.17], [11808, 1, 495, 4.89], [9690, 1, 80, 2.2], [22573, 2, 69, 3.37], [18964, 1, 72, 3.49], [3334, 5, 187, 3.38], [6575, 3, 262, 2.68], [20927, 1, 21, 4.33], [45, 2, 112, 5.89], [1523, 1, 49, 5.78], [9239, 29, 30, 3.99], [4001, 3, 857, 3.48], [2438, 1, 57, 2.68], [105, 3, 99, 1.77], [11678, 1, 474, 4.41], [13258, 29, 41, 4.51], [1277, 1, 199, 4.99], [19685, 1, 38, 4.04], [1701, 2, 168, 4.79], [11886, 2, 204, 2.72], [3477, 2, 35, 3.55], [7567, 3, 74, 3.58], [21269, 3, 313, 6.0], [9209, 29, 34, 6.0], [5165, 2, 406, 2.79], [3984, 3, 1763, 2.37], [10181, 26, 148, 2.12], [7005, 1, 83, 3.87]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 21, 2.06], [305, 2, 7, 0.88], [8650, 2, 9, 3.29], [2778, 2, 13, 2.11], [141, 2, 7, 1.27], [8672, 2, 9, 4.04], [143, 2, 9, 2.51], [6936, 2, 14, 2.62], [145, 2, 11, 1.66], [11837, 2, 7, 3.47], [361, 2, 11, 1.36], [11681, 2, 13, 2.3], [417, 2, 11, 1.36], [75, 2, 9, 1.92], [205, 2, 7, 2.03], [1124, 2, 12, 1.34], [146, 2, 7, 1.1], [11737, 2, 7, 1.06], [8648, 2, 7, 2.71], [12721, 2, 11, 3.55], [8673, 2, 14, 2.91], [523, 2, 7, 1.21], [8853, 2, 11, 3.44], [615, 2, 7, 1.42], [11835, 2, 7, 2.24], [326, 2, 9, 1.93], [990, 2, 9, 0.78], [8675, 2, 9, 3.6], [88, 10, 32, 1.54], [8915, 2, 9, 2.29], [144, 2, 7, 2.16], [434, 2, 9, 1.29], [1005, 2, 7, 2.48], [11739, 2, 7, 1.8], [2424, 29, 7, 1.25], [8676, 2, 9, 4.47], [6158, 2, 11, 1.54], [7704, 2, 14, 3.85], [2423, 29, 7, 1.19], [11836, 2, 7, 3.18], [7705, 2, 11, 4.17], [2424, 80, 7, 1.25], [11738, 2, 7, 2.24], [7706, 2, 7, 2.37], [7004, 1, 7, 3.48], [3478, 2, 7, 1.54], [3, 2, 7, 0.73], [2423, 80, 7, 1.21], [1414, 15, 7, 0.71], [2859, 15, 7, 2.63], [74, 1, 7, 4.61], [3429, 15, 7, 0.71], [2055, 3, 7, 3.87], [10149, 3, 21, 2.23], [6497, 1, 7, 3.32], [18964, 1, 7, 2.18], [12343, 1, 7, 3.34], [13028, 3, 7, 2.37], [94, 4, 7, 0.92], [13928, 1, 7, 1.31], [13034, 3, 9, 2.38], [7084, 3, 7, 2.69], [411, 2, 7, 1.6], [11919, 1, 7, 0.73], [3893, 1, 7, 2.49], [6097, 80, 7, 2.1], [11089, 1, 7, 2.23], [7707, 2, 7, 2.66], [7036, 1, 7, 1.74], [1050, 2, 7, 1.95], [563, 2, 7, 1.31], [192, 3, 21, 4.0], [3891, 1, 7, 2.49], [1339, 1, 7, 0.87], [6630, 3, 7, 2.41], [6494, 1, 7, 3.29], [345, 3, 7, 1.02], [21793, 1, 8, 3.06], [1243, 2, 7, 2.5], [8274, 3, 7, 1.6], [7708, 2, 7, 2.08], [2912, 1, 7, 2.52], [13023, 3, 10, 2.77], [11581, 29, 7, 1.67], [13033, 3, 8, 1.76], [3889, 1, 7, 2.49], [11490, 1, 7, 1.5], [8943, 3, 7, 0.71], [1049, 2, 7, 1.64], [5208, 3, 13, 3.62], [12229, 2, 7, 1.35], [5940, 3, 7, 3.02], [22558, 3, 7, 4.88], [3495, 3, 21, 3.02], [5165, 1, 7, 1.66], [2331, 1, 7, 3.54], [515, 24, 7, 2.7], [201, 3, 7, 1.66], [6629, 3, 7, 0.9], [83, 2, 7, 2.33], [336, 15, 7, 0.67], [1274, 1, 7, 2.27], [7885, 4, 7, 1.33], [229, 1, 7, 2.59], [1309, 1, 7, 2.19], [5812, 3, 7, 2.49], [7005, 1, 7, 2.56], [332, 2, 7, 1.33], [951, 4, 7, 3.12], [21269, 3, 7, 5.0], [214, 3, 15, 1.04], [9690, 1, 7, 0.98], [942, 3, 7, 2.26], [2805, 137, 10, 4.49], [8898, 3, 7, 3.26], [247, 1, 7, 4.71], [335, 3, 21, 2.4], [11914, 1, 7, 1.66], [23961, 3, 7, 4.22], [20555, 2, 7, 1.41], [1703, 2, 7, 1.39], [24257, 1, 7, 3.7], [4940, 1, 7, 0.77], [9827, 3, 7, 1.0], [5811, 3, 8, 2.65], [8635, 3, 7, 1.33], [3934, 5, 12, 2.91], [7573, 1, 7, 1.56], [186, 3, 12, 2.32], [9491, 21, 16, 2.29], [114, 3, 7, 2.77], [11770, 1, 7, 3.87], [10527, 3, 13, 2.94], [13498, 3, 7, 5.0], [5584, 3, 7, 2.72], [11586, 1, 11, 3.58], [19687, 1, 7, 2.33], [11089, 1, 182, 3.55], [7707, 2, 162, 4.22], [7036, 1, 136, 3.05], [563, 2, 77, 2.62], [192, 3, 1407, 5.3], [3891, 1, 130, 3.8], [1339, 1, 77, 2.18], [6630, 3, 101, 3.73], [6494, 1, 51, 4.6], [345, 3, 319, 2.34], [21793, 1, 261, 4.37], [1243, 2, 104, 3.81], [7708, 2, 187, 3.39], [2912, 1, 51, 3.83], [13023, 3, 629, 4.08], [11581, 29, 64, 2.98], [13033, 3, 626, 3.08], [3889, 1, 130, 3.8], [11490, 1, 115, 2.81], [8943, 3, 102, 1.45], [1049, 2, 30, 2.39], [5208, 3, 559, 4.95], [12229, 2, 160, 2.66], [5940, 3, 250, 4.34], [22558, 3, 433, 6.0], [3495, 3, 1026, 4.33], [5165, 1, 51, 2.97], [2331, 1, 123, 4.85], [515, 24, 215, 4.01], [201, 3, 303, 3.22], [6629, 3, 84, 2.21], [1274, 1, 87, 3.58], [229, 1, 87, 3.91], [1309, 1, 55, 3.5], [5812, 3, 536, 5.27], [7005, 1, 83, 3.87], [332, 2, 77, 2.64], [951, 4, 99, 4.43], [21269, 3, 313, 6.0], [214, 3, 692, 2.34], [9690, 1, 80, 2.29], [942, 3, 314, 3.57], [2805, 137, 185, 5.8], [8898, 3, 284, 4.57], [247, 1, 92, 6.0], [11914, 1, 90, 2.97], [23961, 3, 305, 5.54], [20555, 2, 61, 2.72], [1703, 2, 174, 2.71], [4940, 1, 129, 2.08], [9827, 3, 93, 2.31], [5811, 3, 561, 3.96], [3934, 5, 549, 4.23], [7573, 1, 364, 2.87], [186, 3, 699, 3.64], [9491, 21, 2235, 3.57], [114, 3, 257, 4.08], [11770, 1, 228, 5.18], [10527, 3, 920, 4.26], [13498, 3, 626, 6.0], [5584, 3, 244, 4.04], [11586, 1, 409, 4.89], [19687, 1, 32, 3.64]]</t>
+  </si>
+  <si>
+    <t>[[589, 2, 9, 0.75], [141, 2, 9, 1.09], [2327, 2, 11, 1.37], [2778, 2, 7, 1.39], [6936, 2, 11, 3.9], [362, 2, 7, 2.19], [326, 2, 7, 1.5], [305, 2, 9, 2.5], [2775, 2, 7, 2.04], [1446, 2, 7, 3.31], [9760, 29, 7, 0.77], [8649, 2, 7, 2.82], [8853, 2, 13, 2.03], [593, 2, 7, 1.55], [11581, 29, 7, 1.56], [9507, 3, 7, 0.83], [3840, 1, 9, 0.7], [1429, 2, 7, 3.31], [523, 2, 7, 1.49], [7004, 1, 7, 1.93], [7036, 1, 9, 3.79], [5165, 1, 9, 2.38], [990, 2, 7, 0.69], [159, 3, 10, 0.73], [615, 2, 7, 0.98], [201, 3, 20, 3.47], [8089, 1, 7, 1.87], [145, 2, 7, 1.5], [248, 1, 7, 0.92], [345, 3, 9, 1.93], [6952, 1, 7, 1.37], [146, 2, 7, 1.5], [6097, 80, 9, 3.81], [7084, 3, 7, 3.27], [24664, 2, 25, 2.72], [2050, 3, 9, 1.92], [142, 2, 7, 1.12], [144, 2, 7, 1.5], [2912, 1, 7, 2.36], [7005, 1, 7, 1.46], [11770, 1, 7, 2.77], [3891, 1, 7, 1.62], [1886, 2, 7, 1.29], [997, 2, 7, 0.71], [432, 3, 7, 3.18], [998, 2, 7, 0.9], [6097, 29, 7, 2.0], [3893, 1, 7, 1.62], [6158, 2, 7, 4.35], [5165, 2, 12, 1.23], [10149, 3, 21, 1.49], [2424, 80, 7, 2.27], [12870, 1, 7, 1.42], [10517, 29, 7, 2.45], [11772, 1, 7, 2.48], [11089, 1, 7, 1.12], [20927, 1, 7, 2.5], [6098, 80, 7, 1.37], [7885, 4, 11, 1.58], [10574, 3, 8, 1.46], [1492, 1, 7, 0.83], [9372, 1, 7, 2.62], [4032, 29, 7, 2.12], [5208, 3, 9, 3.64], [3334, 5, 7, 4.62], [22316, 3, 9, 0.8], [13028, 3, 9, 3.96], [1519, 3, 18, 0.78], [3576, 25, 7, 2.96], [1490, 1, 7, 1.02], [3889, 1, 7, 1.62], [1700, 2, 7, 2.62], [12304, 1, 7, 3.62], [2912, 2, 8, 2.37], [13034, 3, 7, 1.05], [972, 3, 7, 2.37], [214, 3, 15, 0.91], [11952, 1, 7, 2.0], [5151, 2, 7, 1.98], [229, 1, 7, 2.08], [2331, 1, 7, 2.57], [11426, 25, 7, 1.94], [5812, 3, 8, 2.39], [9289, 29, 7, 2.53], [11490, 1, 7, 1.0], [3478, 2, 7, 1.46], [8677, 3, 8, 2.09], [13893, 2, 7, 1.6], [995, 2, 7, 2.39], [75, 2, 7, 0.87], [3, 2, 7, 2.25], [10, 2, 7, 0.94], [414, 1, 7, 1.98], [3575, 25, 7, 1.61], [2160, 68, 7, 1.96], [2805, 137, 7, 2.31], [410, 1, 7, 1.79], [13244, 1, 7, 0.75], [13023, 3, 8, 2.71], [11404, 2, 7, 0.81], [1309, 1, 7, 0.79], [4253, 1, 7, 2.32], [159, 1, 7, 1.02], [192, 3, 13, 3.54], [5209, 3, 7, 3.51], [9069, 1, 7, 1.29], [11813, 1, 7, 5.0], [6494, 1, 7, 2.02], [2438, 2, 8, 1.15], [24257, 1, 7, 3.21], [957, 2, 7, 0.87], [9971, 2, 7, 2.78], [9491, 21, 15, 2.64], [14037, 3, 7, 2.07], [9967, 2, 7, 2.78], [159, 16, 7, 1.04], [4033, 29, 7, 3.03], [2878, 1, 7, 0.79], [105, 3, 7, 1.98], [9964, 2, 7, 1.79], [5584, 3, 7, 4.0], [21697, 3, 7, 1.0], [22317, 3, 8, 3.55], [823, 1, 7, 0.89], [9965, 2, 7, 2.78], [8283, 2, 8, 1.67], [10609, 1, 7, 2.3], [10407, 10, 10, 1.36], [4076, 3, 7, 3.37], [13033, 3, 7, 1.05], [3495, 3, 16, 3.18], [1277, 1, 7, 3.49], [4586, 10, 21, 1.4], [11687, 2, 7, 1.29], [12647, 1, 7, 4.93], [7567, 3, 7, 2.04], [3889, 1, 147, 2.85], [1700, 2, 84, 3.85], [12304, 1, 129, 4.85], [2912, 2, 449, 3.6], [13034, 3, 705, 2.28], [214, 3, 771, 2.14], [11952, 1, 235, 3.23], [5151, 2, 29, 3.21], [229, 1, 98, 3.31], [2331, 1, 137, 3.8], [11426, 25, 140, 3.17], [5812, 3, 694, 3.62], [9289, 29, 75, 3.76], [11490, 1, 91, 2.17], [3478, 2, 89, 2.69], [8677, 3, 347, 3.32], [13893, 2, 325, 2.84], [995, 2, 290, 3.63], [75, 2, 173, 2.1], [3, 2, 138, 3.49], [414, 1, 102, 3.21], [3575, 25, 119, 2.84], [2160, 68, 156, 3.19], [2805, 137, 215, 3.54], [13244, 1, 58, 1.98], [13023, 3, 701, 3.94], [11404, 2, 100, 2.01], [1309, 1, 61, 2.02], [4253, 1, 198, 3.56], [159, 1, 24, 2.12], [192, 3, 1439, 5.01], [5209, 3, 634, 4.75], [9069, 1, 146, 2.52], [11813, 1, 357, 6.0], [6494, 1, 60, 3.25], [2438, 2, 758, 2.39], [957, 2, 129, 2.1], [9971, 2, 323, 4.01], [9491, 21, 2492, 3.86], [14037, 3, 402, 3.31], [9967, 2, 323, 4.01], [159, 16, 47, 2.14], [4033, 29, 118, 4.26], [2878, 1, 96, 2.02], [105, 3, 284, 3.21], [9964, 2, 323, 3.02], [5584, 3, 279, 5.23], [21697, 3, 215, 2.23], [22317, 3, 354, 4.78], [823, 1, 49, 2.12], [9965, 2, 323, 4.01], [8283, 2, 560, 2.91], [10609, 1, 369, 3.53], [10407, 10, 1439, 2.6], [4076, 3, 236, 4.6], [13033, 3, 705, 2.28], [3495, 3, 1144, 4.43], [1277, 1, 222, 4.72], [4586, 10, 1745, 2.65], [11687, 2, 358, 2.52], [12647, 1, 256, 6.0], [7567, 3, 82, 3.27]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 15, 2.66], [305, 2, 7, 1.49], [6935, 2, 28, 4.33], [141, 2, 9, 2.37], [2049, 3, 16, 0.5], [12721, 2, 10, 2.24], [151, 1, 9, 1.08], [205, 2, 7, 1.36], [130, 1, 7, 1.51], [1776, 1, 7, 3.56], [362, 2, 7, 2.59], [146, 2, 9, 1.44], [145, 2, 7, 0.91], [593, 2, 14, 1.83], [8915, 2, 12, 0.73], [2328, 2, 9, 1.01], [8648, 2, 7, 3.59], [1777, 1, 7, 2.22], [3, 2, 9, 1.97], [5151, 2, 7, 0.85], [6936, 2, 15, 2.57], [248, 1, 7, 0.67], [8675, 2, 10, 2.17], [22247, 2, 9, 2.6], [1007, 2, 12, 0.91], [2778, 2, 9, 1.38], [10, 2, 17, 1.55], [88, 10, 24, 1.98], [8677, 3, 8, 3.19], [412, 1, 7, 2.33], [11681, 2, 11, 2.92], [10149, 3, 25, 3.26], [10825, 21, 13, 2.21], [2054, 3, 10, 1.86], [75, 2, 7, 1.27], [13028, 3, 7, 1.29], [147, 1, 7, 2.6], [361, 2, 7, 1.75], [413, 1, 7, 3.27], [2055, 3, 7, 1.92], [7004, 1, 7, 1.49], [2057, 3, 7, 3.71], [8676, 2, 7, 3.1], [411, 2, 7, 1.91], [308, 1, 7, 2.71], [410, 1, 7, 1.67], [61, 3, 9, 1.9], [432, 3, 7, 2.04], [1446, 2, 7, 1.04], [1124, 2, 10, 0.75], [45, 2, 7, 3.67], [7005, 1, 7, 1.25], [5081, 2, 15, 1.3], [9827, 3, 7, 1.9], [167, 3, 14, 2.82], [5812, 3, 10, 2.78], [94, 4, 7, 3.35], [1492, 1, 7, 0.81], [3495, 3, 26, 2.96], [57, 1, 7, 0.71], [12870, 1, 14, 5.0], [168, 3, 20, 2.11], [2049, 1, 7, 0.69], [3893, 1, 7, 1.02], [11234, 2, 8, 2.07], [3889, 1, 7, 1.02], [6097, 29, 7, 1.66], [3891, 1, 7, 1.02], [8651, 2, 7, 3.04], [2336, 3, 9, 1.96], [95, 3, 19, 1.64], [335, 3, 22, 2.4], [6097, 80, 7, 3.7], [192, 3, 17, 3.91], [6098, 29, 14, 3.69], [1490, 1, 9, 1.54], [11737, 2, 7, 1.62], [214, 3, 15, 1.26], [20927, 1, 7, 2.0], [998, 2, 7, 2.48], [9069, 1, 7, 2.03], [20498, 1, 7, 2.94], [8898, 3, 7, 4.48], [1622, 1, 9, 2.24], [6098, 80, 7, 3.69], [9760, 29, 9, 1.01], [1070, 7, 13, 2.71], [14017, 3, 7, 1.29], [9829, 3, 7, 3.0], [13260, 29, 7, 2.65], [997, 2, 7, 2.5], [13034, 3, 13, 2.73], [12924, 1, 7, 1.02], [22554, 10, 18, 0.87], [11116, 1, 7, 1.1], [20498, 3, 15, 3.24], [35, 1, 7, 3.93], [1243, 2, 7, 1.98], [5513, 2, 7, 1.1], [336, 15, 7, 0.67], [5811, 3, 7, 3.96], [996, 2, 7, 4.67], [9691, 1, 7, 3.33], [5946, 1, 7, 1.02], [5813, 3, 7, 2.39], [5086, 1, 11, 3.89], [8945, 3, 8, 1.92], [39, 1, 7, 3.97], [3049, 3, 7, 4.36], [1080, 3, 7, 1.71], [952, 4, 7, 5.0], [1413, 15, 7, 1.35], [11085, 2, 7, 1.95], [8557, 3, 7, 2.11], [20486, 3, 15, 4.65], [4076, 3, 7, 5.0], [9082, 3, 29, 2.75], [2424, 80, 7, 2.12], [215, 4, 7, 5.0], [34, 1, 7, 3.96], [1703, 2, 7, 2.97], [20486, 1, 7, 2.87], [11510, 3, 9, 2.99], [38, 1, 7, 3.97], [3900, 3, 7, 1.73], [23611, 3, 7, 3.74], [14037, 3, 7, 1.0], [972, 3, 8, 1.87], [8943, 3, 7, 1.22], [13023, 3, 8, 3.12], [8274, 3, 7, 1.52], [2854, 21, 19, 1.27], [14018, 3, 7, 0.81], [8104, 1, 7, 1.14], [6497, 1, 7, 1.58], [3047, 3, 7, 2.01], [11770, 1, 7, 3.11], [18, 1, 7, 1.12], [8651, 2, 206, 3.99], [2336, 3, 606, 2.91], [95, 3, 1086, 3.63], [192, 3, 1376, 4.85], [1490, 1, 47, 2.99], [11737, 2, 59, 2.57], [214, 3, 677, 2.21], [998, 2, 249, 3.42], [9069, 1, 38, 2.85], [20498, 1, 95, 4.6], [8898, 3, 290, 6.0], [1622, 1, 92, 3.19], [9760, 29, 71, 2.46], [1070, 7, 578, 3.92], [14017, 3, 192, 3.89], [9829, 3, 64, 4.2], [13260, 29, 72, 3.85], [997, 2, 249, 3.45], [13034, 3, 578, 5.17], [12924, 1, 55, 1.97], [22554, 10, 374, 2.26], [11116, 1, 83, 2.05], [20498, 3, 570, 4.69], [35, 1, 76, 4.82], [1243, 2, 102, 2.93], [5513, 2, 75, 2.3], [996, 2, 236, 5.8], [9691, 1, 73, 5.2], [5946, 1, 122, 2.42], [5813, 3, 537, 4.28], [5086, 1, 64, 4.81], [8945, 3, 206, 2.67], [39, 1, 95, 4.88], [3049, 3, 122, 6.0], [1080, 3, 131, 2.66], [952, 4, 74, 6.0], [1413, 15, 96, 2.3], [11085, 2, 570, 2.9], [8557, 3, 196, 4.18], [20486, 3, 587, 5.94], [4076, 3, 197, 6.0], [9082, 3, 2551, 3.67], [2424, 80, 179, 3.07], [215, 4, 20, 6.0], [34, 1, 95, 4.88], [1703, 2, 162, 4.87], [20486, 1, 97, 5.52], [11510, 3, 521, 4.14], [38, 1, 114, 4.92], [3900, 3, 45, 2.68], [23611, 3, 328, 4.95], [14037, 3, 120, 1.56], [972, 3, 622, 2.82], [13023, 3, 581, 5.08], [2854, 21, 1086, 2.99], [14018, 3, 186, 2.0], [8104, 1, 214, 2.08], [6497, 1, 39, 2.53], [3047, 3, 282, 2.96], [11770, 1, 226, 4.05], [18, 1, 17, 1.69]]</t>
   </si>
 </sst>
 </file>

--- a/QD_upload.xlsx
+++ b/QD_upload.xlsx
@@ -70,82 +70,82 @@
     <t>SakkarahQD</t>
   </si>
   <si>
-    <t>21/12/2025 14:34</t>
-  </si>
-  <si>
-    <t>27/12/2025 23:59</t>
-  </si>
-  <si>
-    <t>[[305, 2, 4, 0.35], [8672, 2, 6, 0.73], [3, 2, 4, 0.72], [589, 2, 8, 0.2], [130, 1, 5, 0.6], [2049, 3, 11, 0.63], [205, 2, 4, 0.2], [144, 2, 4, 0.74], [12721, 2, 6, 0.97], [75, 2, 6, 0.87], [145, 2, 4, 0.27], [1776, 1, 4, 0.61], [8915, 2, 8, 0.2], [593, 2, 6, 0.59], [146, 2, 4, 0.91], [151, 1, 4, 0.2], [2778, 2, 8, 0.2], [1777, 1, 4, 0.74], [20252, 2, 4, 0.46], [8648, 2, 5, 1.27], [206, 2, 4, 0.83], [6936, 2, 8, 0.92], [2328, 2, 4, 0.2], [5151, 2, 4, 0.2], [88, 10, 10, 0.45], [141, 2, 4, 1.31], [8675, 2, 6, 0.96], [74, 1, 4, 1.53], [83, 2, 4, 0.44], [7004, 1, 4, 1.74], [1492, 1, 4, 0.42], [2054, 3, 6, 0.53], [1446, 2, 4, 1.55], [10825, 21, 11, 1.04], [362, 2, 4, 1.32], [2057, 3, 6, 0.47], [1007, 2, 5, 0.2], [345, 3, 6, 0.32], [432, 3, 6, 0.62], [7005, 1, 4, 1.39], [22247, 2, 5, 0.95], [11681, 2, 5, 0.94], [201, 3, 6, 0.21], [57, 1, 4, 0.44], [410, 1, 4, 1.75], [3889, 1, 4, 0.2], [308, 1, 6, 0.49], [10149, 3, 17, 0.99], [12870, 1, 4, 2.08], [1124, 2, 8, 0.2], [7036, 1, 4, 0.93], [35, 1, 4, 0.83], [167, 3, 5, 1.4], [9827, 3, 4, 1.62], [5081, 2, 6, 0.2], [8677, 3, 7, 1.3], [94, 4, 4, 1.82], [411, 2, 4, 0.71], [1504, 2, 5, 0.2], [3891, 1, 4, 0.2], [79, 1, 4, 0.24], [168, 3, 5, 1.23], [8676, 2, 4, 0.73], [3893, 1, 4, 0.2], [5812, 3, 6, 0.8], [9760, 29, 4, 0.2], [23, 1, 4, 1.51], [1490, 1, 5, 0.23], [412, 1, 4, 1.64], [3980, 4, 4, 1.39], [20927, 1, 4, 1.67], [45, 2, 4, 0.64], [361, 2, 4, 1.31], [1767, 25, 5, 0.59], [5208, 3, 6, 0.47], [1622, 1, 4, 1.13], [95, 3, 18, 0.3], [9069, 1, 4, 0.42], [8651, 2, 4, 1.43], [335, 3, 13, 0.22], [25, 1, 4, 1.51], [214, 3, 11, 0.2], [10574, 3, 5, 0.46], [413, 1, 5, 1.82], [2049, 1, 4, 0.2], [34, 1, 4, 1.85], [998, 2, 4, 1.47], [856, 1, 4, 0.2], [3495, 3, 15, 1.31], [8898, 3, 7, 0.75], [9691, 1, 4, 2.02], [1766, 25, 4, 1.62], [1070, 7, 10, 0.47], [11116, 1, 5, 2.41], [20498, 1, 4, 0.23], [38, 1, 4, 2.1], [997, 2, 4, 0.86], [5946, 1, 4, 0.78], [14017, 3, 5, 0.54], [1413, 15, 4, 0.43], [974, 3, 5, 1.13], [9829, 3, 4, 1.42], [152, 21, 4, 0.97], [1091, 1, 4, 0.53], [20498, 3, 8, 0.58], [39, 1, 4, 2.1], [82, 2, 4, 1.43], [14037, 3, 5, 0.2], [9372, 1, 4, 1.08], [5209, 3, 5, 0.75], [1080, 3, 5, 0.2], [5086, 1, 4, 2.44], [996, 2, 5, 1.47], [1767, 2, 4, 0.59], [3048, 3, 4, 1.24], [9828, 3, 4, 1.77], [972, 3, 6, 0.91], [13260, 29, 4, 0.98], [24, 1, 4, 1.32], [4203, 1, 4, 0.3], [5513, 2, 5, 0.5], [10780, 10, 4, 1.3], [5813, 3, 5, 1.52], [3981, 3, 12, 1.42], [202, 2, 4, 1.59], [8945, 3, 5, 1.51], [952, 4, 5, 2.41], [36, 1, 4, 2.1], [336, 15, 5, 0.2], [2878, 1, 4, 0.54], [13034, 3, 5, 1.08], [3900, 3, 4, 0.49], [23611, 3, 5, 2.51], [995, 2, 4, 1.02], [6497, 1, 4, 0.67], [14018, 3, 4, 0.46], [24257, 1, 4, 1.29], [9082, 3, 18, 0.83], [170, 3, 4, 1.24], [305, 2, 158, 2.63], [8672, 2, 318, 4.0], [3, 2, 158, 3.25], [589, 2, 156, 2.16], [205, 2, 122, 3.04], [144, 2, 171, 2.74], [12721, 2, 311, 4.5], [75, 2, 166, 4.23], [145, 2, 163, 2.32], [1776, 1, 122, 3.94], [8915, 2, 118, 2.0], [593, 2, 194, 3.27], [146, 2, 181, 2.81], [151, 1, 75, 2.2], [2778, 2, 158, 3.87], [1777, 1, 122, 4.16], [20252, 2, 111, 1.96], [8648, 2, 226, 6.0], [6936, 2, 292, 5.28], [2328, 2, 171, 4.1], [5151, 2, 27, 2.22], [88, 10, 643, 3.3], [141, 2, 174, 4.08], [8675, 2, 335, 2.83], [74, 1, 223, 6.0], [83, 2, 60, 2.27], [1492, 1, 45, 1.88], [2054, 3, 532, 3.34], [10825, 21, 732, 4.24], [362, 2, 158, 3.67], [2057, 3, 532, 3.69], [1007, 2, 289, 2.04], [345, 3, 340, 3.85], [432, 3, 336, 3.95], [7005, 1, 88, 3.75], [22247, 2, 311, 5.87], [11681, 2, 323, 4.87], [201, 3, 340, 3.85], [57, 1, 95, 2.41], [3889, 1, 138, 3.61], [308, 1, 188, 4.48], [10149, 3, 996, 4.45], [12870, 1, 165, 6.0], [1124, 2, 210, 3.48], [7036, 1, 146, 4.55], [35, 1, 123, 4.72], [167, 3, 77, 3.69], [9827, 3, 59, 4.05], [5081, 2, 216, 3.34], [8677, 3, 331, 4.07], [411, 2, 117, 2.44], [1504, 2, 221, 3.54], [3891, 1, 138, 4.49], [79, 1, 51, 2.26], [168, 3, 205, 4.59], [8676, 2, 318, 3.02], [3893, 1, 138, 4.45], [5812, 3, 608, 4.18], [9760, 29, 80, 2.67], [1490, 1, 55, 2.24], [412, 1, 94, 4.57]]</t>
-  </si>
-  <si>
-    <t>[[305, 2, 4, 0.45], [6935, 2, 6, 1.69], [2778, 2, 5, 0.2], [144, 2, 4, 0.29], [8915, 2, 5, 0.2], [6936, 2, 5, 1.66], [2775, 2, 4, 1.06], [205, 2, 4, 0.92], [8650, 2, 4, 1.77], [593, 2, 6, 0.2], [145, 2, 4, 0.2], [146, 2, 5, 0.91], [326, 2, 4, 0.39], [7036, 1, 4, 1.78], [5493, 2, 4, 0.38], [88, 10, 8, 0.78], [141, 2, 5, 0.79], [7004, 1, 4, 1.34], [1446, 2, 4, 0.2], [1124, 2, 5, 0.32], [9760, 29, 4, 0.98], [206, 2, 4, 0.2], [8853, 2, 4, 1.29], [8672, 2, 4, 1.69], [362, 2, 4, 1.56], [142, 2, 4, 0.92], [11685, 2, 4, 0.46], [2912, 1, 4, 1.9], [7886, 4, 5, 0.2], [8649, 2, 4, 0.75], [5165, 1, 4, 1.61], [12870, 1, 6, 1.68], [1622, 1, 5, 0.88], [2055, 3, 6, 0.56], [417, 2, 4, 0.92], [7573, 1, 10, 2.71], [7084, 3, 4, 1.34], [21793, 1, 4, 0.86], [7885, 4, 5, 0.74], [2054, 3, 6, 2.22], [523, 2, 4, 0.55], [10, 2, 5, 0.61], [9372, 1, 4, 1.24], [3891, 1, 4, 0.38], [75, 2, 5, 1.25], [10149, 3, 19, 1.22], [5208, 3, 7, 0.19], [9491, 21, 10, 0.83], [20927, 1, 4, 1.51], [35, 1, 5, 1.79], [997, 2, 4, 1.26], [12721, 2, 7, 1.71], [5165, 2, 5, 0.65], [3, 2, 6, 0.93], [33, 1, 4, 0.75], [998, 2, 4, 0.95], [94, 4, 4, 0.5], [7887, 4, 4, 0.58], [22247, 2, 4, 1.39], [996, 2, 4, 0.95], [972, 3, 6, 0.75], [34, 1, 4, 1.57], [6158, 2, 8, 0.2], [2805, 137, 4, 1.6], [2912, 2, 7, 1.9], [2424, 80, 4, 0.83], [38, 1, 4, 0.75], [8104, 1, 4, 1.55], [2336, 3, 5, 0.5], [8898, 3, 4, 0.75], [9690, 1, 4, 0.38], [12212, 29, 6, 0.2], [24257, 1, 5, 0.77], [39, 1, 4, 0.75], [11952, 1, 4, 0.82], [7567, 3, 4, 1.58], [2424, 29, 5, 0.91], [1414, 15, 4, 0.44], [192, 3, 11, 1.07], [8676, 2, 4, 1.69], [11770, 1, 4, 1.36], [3495, 3, 15, 1.25], [202, 2, 4, 0.49], [13928, 1, 4, 1.33], [3048, 3, 6, 0.92], [4032, 29, 4, 2.74], [23961, 3, 4, 1.88], [11490, 1, 4, 0.44], [161, 3, 6, 1.29], [5946, 1, 4, 0.35], [11772, 1, 4, 0.93], [1703, 2, 4, 0.42], [10407, 10, 7, 1.13], [74, 1, 4, 1.99], [10410, 10, 6, 1.25], [13023, 3, 5, 1.51], [1274, 1, 5, 0.2], [1519, 3, 10, 0.22], [24258, 1, 4, 1.09], [1523, 1, 4, 0.56], [21269, 3, 4, 2.75], [2331, 1, 4, 1.07], [11236, 2, 4, 0.62], [4253, 1, 4, 0.2], [5164, 1, 4, 0.64], [4076, 3, 4, 1.59], [3430, 15, 4, 0.67], [12764, 2, 5, 0.35], [6097, 80, 4, 0.71], [972, 1, 4, 0.84], [214, 3, 15, 0.2], [6097, 29, 4, 0.71], [10780, 10, 4, 1.03], [1080, 3, 4, 1.4], [8674, 2, 4, 0.72], [3047, 3, 5, 1.64], [13893, 2, 4, 1.17], [9081, 3, 7, 0.5], [11404, 2, 4, 0.42], [10408, 10, 5, 0.59], [8677, 3, 4, 1.3], [13034, 3, 4, 1.52], [3576, 29, 4, 1.33], [1243, 2, 4, 0.51], [12662, 1, 4, 0.53], [13264, 29, 4, 0.47], [2436, 4, 4, 0.4], [20486, 3, 4, 1.81], [6497, 1, 4, 0.97], [7704, 2, 4, 0.45], [13928, 2, 4, 1.33], [3334, 5, 4, 1.63], [11813, 1, 4, 0.88], [45, 2, 4, 0.36], [1277, 1, 4, 0.98], [305, 2, 163, 3.77], [6935, 2, 311, 6.0], [2778, 2, 171, 4.06], [144, 2, 168, 2.49], [8915, 2, 210, 3.09], [6936, 2, 311, 6.0], [2775, 2, 181, 3.24], [8650, 2, 232, 4.61], [593, 2, 236, 3.55], [145, 2, 168, 3.13], [146, 2, 168, 2.85], [326, 2, 97, 2.47], [7036, 1, 142, 6.0], [5493, 2, 126, 1.93], [88, 10, 330, 4.14], [141, 2, 170, 3.86], [1446, 2, 166, 3.09], [1124, 2, 195, 3.04], [9760, 29, 41, 2.96], [206, 2, 118, 3.28], [8853, 2, 328, 3.76], [8672, 2, 328, 4.45], [362, 2, 49, 3.89], [142, 2, 170, 3.73], [11685, 2, 299, 3.21], [2912, 1, 52, 4.93], [7886, 4, 35, 1.47], [8649, 2, 258, 4.24], [5165, 1, 52, 4.3], [12870, 1, 152, 6.0], [1622, 1, 114, 2.83], [2055, 3, 518, 3.08], [417, 2, 170, 3.47], [7573, 1, 379, 6.0], [7084, 3, 148, 4.75], [21793, 1, 269, 3.15], [2054, 3, 109, 4.31], [523, 2, 170, 2.64], [10, 2, 114, 3.26], [9372, 1, 272, 3.59], [3891, 1, 130, 2.66], [75, 2, 159, 5.0], [10149, 3, 986, 4.61], [5208, 3, 618, 2.62], [9491, 21, 2565, 2.94], [35, 1, 115, 4.73], [997, 2, 277, 3.63], [12721, 2, 309, 5.44], [5165, 2, 439, 3.24], [3, 2, 128, 4.46], [33, 1, 127, 3.07], [998, 2, 277, 3.03], [94, 4, 143, 2.16], [22247, 2, 309, 4.22], [996, 2, 277, 3.03], [972, 3, 652, 4.02], [34, 1, 115, 4.7], [6158, 2, 285, 3.14], [2805, 137, 200, 4.35], [2912, 2, 415, 4.94], [2424, 80, 199, 2.8], [38, 1, 127, 3.07], [8104, 1, 226, 4.27], [2336, 3, 676, 2.59], [8898, 3, 339, 2.63]]</t>
-  </si>
-  <si>
-    <t>[[326, 2, 5, 0.71], [11685, 2, 4, 1.87], [144, 2, 5, 0.8], [11681, 2, 5, 1.37], [589, 2, 5, 0.2], [2327, 2, 4, 0.49], [205, 2, 5, 0.37], [593, 2, 6, 0.27], [141, 2, 5, 0.53], [305, 2, 4, 0.51], [8915, 2, 5, 0.78], [8650, 2, 4, 1.13], [2328, 2, 4, 0.2], [151, 1, 4, 0.36], [6936, 2, 8, 1.85], [2778, 2, 6, 0.2], [2049, 3, 7, 0.47], [146, 2, 6, 0.57], [206, 2, 5, 0.71], [88, 10, 15, 1.4], [7004, 1, 4, 1.62], [9507, 3, 4, 0.2], [615, 2, 4, 0.37], [7036, 1, 4, 1.98], [145, 2, 5, 0.66], [1446, 2, 4, 0.65], [417, 2, 4, 0.4], [8853, 2, 6, 1.7], [362, 2, 4, 1.56], [248, 1, 4, 0.37], [523, 2, 6, 0.28], [2055, 3, 6, 2.49], [10993, 2, 4, 0.26], [142, 2, 4, 0.48], [75, 2, 5, 0.75], [616, 2, 4, 0.5], [3840, 1, 4, 0.39], [11737, 2, 4, 0.66], [2050, 3, 4, 1.39], [12870, 1, 4, 0.7], [12350, 1, 4, 1.03], [2054, 3, 4, 1.39], [2057, 3, 5, 2.02], [7084, 3, 4, 0.87], [13028, 3, 4, 0.62], [20927, 1, 4, 1.36], [7005, 1, 5, 0.92], [3, 2, 4, 0.27], [3982, 3, 10, 0.59], [10, 2, 5, 0.2], [997, 2, 4, 0.89], [94, 4, 4, 0.91], [21793, 1, 4, 1.93], [61, 3, 4, 2.27], [7885, 4, 6, 0.52], [3891, 1, 4, 0.2], [996, 2, 4, 1.05], [6158, 2, 4, 0.88], [998, 2, 4, 0.57], [8672, 2, 5, 1.45], [5165, 1, 4, 0.65], [9491, 21, 10, 1.24], [11739, 2, 4, 1.07], [2912, 1, 4, 1.89], [972, 3, 5, 0.93], [5165, 2, 5, 0.65], [7886, 4, 4, 0.47], [346, 3, 4, 0.46], [3980, 4, 4, 1.34], [98, 11, 10, 0.68], [10388, 2, 4, 1.26], [411, 2, 4, 0.64], [1492, 1, 4, 0.47], [346, 1, 4, 0.2], [7573, 1, 4, 0.97], [8677, 3, 4, 1.96], [83, 2, 4, 0.67], [5208, 3, 4, 1.03], [7567, 3, 4, 0.71], [410, 1, 4, 0.44], [22316, 3, 4, 0.51], [995, 2, 4, 0.93], [3981, 3, 13, 1.15], [9081, 3, 7, 0.78], [13928, 1, 4, 0.82], [22247, 2, 5, 1.07], [10386, 2, 4, 0.76], [9372, 1, 4, 1.12], [336, 15, 4, 0.55], [11770, 1, 4, 1.14], [308, 1, 4, 0.8], [10780, 10, 4, 1.77], [1622, 1, 4, 0.83], [11953, 1, 4, 0.51], [161, 3, 5, 1.29], [2912, 2, 5, 1.89], [23611, 3, 5, 1.1], [9082, 3, 17, 1.08], [5946, 1, 4, 0.85], [345, 3, 4, 0.5], [22317, 3, 4, 0.51], [192, 3, 13, 0.72], [11116, 1, 4, 1.67], [229, 1, 4, 1.14], [24257, 1, 5, 2.5], [37, 1, 5, 1.5], [82, 2, 4, 0.51], [972, 1, 5, 0.92], [11767, 1, 4, 0.66], [12271, 2, 4, 1.13], [7704, 2, 4, 1.7], [34, 1, 5, 1.42], [14037, 3, 4, 1.22], [8104, 1, 4, 1.56], [10410, 10, 6, 1.29], [10407, 10, 6, 1.33], [11085, 2, 4, 1.27], [11404, 2, 4, 0.42], [3048, 3, 4, 1.14], [10387, 2, 4, 0.79], [20498, 3, 5, 0.4], [74, 1, 4, 1.04], [38, 1, 4, 1.42], [1413, 15, 4, 0.4], [335, 3, 9, 0.49], [12721, 2, 4, 0.9], [2331, 1, 4, 1.09], [12338, 29, 4, 0.39], [215, 4, 4, 2.04], [4001, 3, 7, 0.94], [1523, 1, 4, 0.6], [4253, 1, 4, 0.88], [11510, 3, 5, 0.99], [8673, 2, 5, 2.14], [45, 2, 4, 1.17], [201, 3, 4, 0.5], [326, 2, 90, 2.75], [11685, 2, 256, 6.0], [144, 2, 156, 3.56], [11681, 2, 256, 6.0], [589, 2, 142, 2.68], [2327, 2, 164, 2.07], [205, 2, 112, 2.12], [593, 2, 210, 3.41], [141, 2, 158, 4.17], [305, 2, 152, 3.88], [8915, 2, 195, 2.5], [8650, 2, 229, 3.8], [2328, 2, 149, 2.19], [151, 1, 16, 1.32], [6936, 2, 284, 6.0], [2778, 2, 160, 4.01], [146, 2, 141, 3.93], [206, 2, 26, 2.95], [88, 10, 587, 3.79], [9507, 3, 206, 1.82], [615, 2, 118, 2.07], [7036, 1, 133, 5.22], [145, 2, 149, 3.12], [1446, 2, 156, 3.1], [417, 2, 158, 2.31], [8853, 2, 284, 5.32], [362, 2, 68, 3.95], [248, 1, 20, 1.55], [523, 2, 158, 4.0], [2055, 3, 466, 6.0], [10993, 2, 53, 2.36], [142, 2, 167, 2.05], [75, 2, 144, 3.51], [616, 2, 118, 2.09], [3840, 1, 83, 1.7], [11737, 2, 62, 2.4], [2050, 3, 436, 5.56], [12870, 1, 149, 4.81], [12350, 1, 656, 4.23], [2054, 3, 436, 5.56], [2057, 3, 466, 6.0], [7084, 3, 138, 2.8], [13028, 3, 144, 2.63], [20927, 1, 47, 3.63], [7005, 1, 80, 2.92], [3, 2, 117, 2.37], [3982, 3, 854, 2.36], [997, 2, 261, 2.84], [94, 4, 134, 2.88], [21793, 1, 262, 4.91], [61, 3, 99, 5.32], [3891, 1, 122, 2.25], [996, 2, 232, 4.4], [6158, 2, 281, 2.89], [998, 2, 261, 2.22], [8672, 2, 291, 5.33], [5165, 1, 51, 3.25], [9491, 21, 2313, 4.22], [11739, 2, 62, 3.19], [2912, 1, 48, 4.84], [972, 3, 643, 2.77], [5165, 2, 410, 3.24], [346, 3, 670, 2.0], [3980, 4, 519, 3.76]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 9, 0.22], [362, 2, 5, 0.45], [2049, 3, 12, 0.2], [589, 2, 8, 0.2], [3, 2, 4, 0.76], [75, 2, 5, 0.49], [141, 2, 5, 1.3], [8672, 2, 7, 0.72], [1776, 1, 4, 0.58], [130, 1, 4, 0.4], [205, 2, 4, 0.21], [8915, 2, 5, 0.39], [151, 1, 4, 0.4], [11681, 2, 5, 2.33], [2778, 2, 6, 0.2], [305, 2, 5, 0.49], [1777, 1, 5, 0.93], [6936, 2, 5, 1.02], [8648, 2, 5, 0.77], [593, 2, 7, 0.72], [990, 2, 4, 0.2], [88, 10, 12, 0.33], [83, 2, 4, 0.5], [1007, 2, 6, 0.37], [345, 3, 5, 0.21], [5151, 2, 4, 0.4], [412, 1, 4, 1.02], [361, 2, 4, 0.49], [201, 3, 6, 0.21], [22247, 2, 5, 1.22], [21793, 1, 4, 1.03], [10149, 3, 15, 1.56], [45, 2, 5, 1.12], [12721, 2, 6, 1.22], [7004, 1, 5, 0.72], [10825, 21, 8, 1.15], [2054, 3, 5, 1.33], [167, 3, 6, 1.09], [413, 1, 4, 1.7], [2057, 3, 5, 1.62], [308, 1, 5, 1.76], [5005, 1, 4, 0.48], [74, 1, 4, 0.84], [6158, 2, 7, 0.87], [168, 3, 4, 0.99], [1446, 2, 4, 0.52], [346, 1, 4, 0.48], [432, 3, 5, 0.39], [13028, 3, 6, 0.5], [10, 2, 6, 0.2], [7036, 1, 5, 1.96], [3495, 3, 17, 0.91], [12870, 1, 4, 2.58], [214, 3, 10, 0.42], [335, 3, 15, 0.67], [5081, 2, 5, 0.47], [79, 1, 4, 0.2], [5208, 3, 7, 1.75], [9827, 3, 4, 1.03], [410, 1, 4, 0.8], [3889, 1, 5, 0.2], [1492, 1, 4, 0.42], [95, 3, 13, 1.12], [5812, 3, 8, 0.95], [94, 4, 4, 2.26], [3893, 1, 5, 0.2], [13260, 29, 4, 1.1], [23, 1, 4, 1.51], [1504, 2, 5, 0.2], [7005, 1, 5, 0.74], [1490, 1, 4, 1.29], [411, 2, 4, 0.55], [10993, 2, 4, 0.42], [3891, 1, 4, 1.26], [25, 1, 4, 1.8], [998, 2, 4, 0.69], [1124, 2, 5, 0.54], [3980, 4, 4, 1.4], [21269, 3, 5, 3.75], [8651, 2, 4, 0.35], [10574, 3, 5, 0.42], [9691, 1, 4, 2.15], [5086, 1, 6, 1.36], [856, 1, 4, 0.2], [2878, 1, 4, 1.82], [997, 2, 6, 1.37], [5660, 2, 5, 2.62], [8676, 2, 5, 0.97], [11914, 1, 6, 0.2], [20927, 1, 4, 0.86], [192, 3, 13, 2.38], [9829, 3, 4, 1.31], [1703, 2, 5, 1.38], [5209, 3, 6, 1.73], [8674, 2, 4, 1.22], [1622, 1, 6, 0.88], [9081, 3, 7, 0.38], [952, 4, 4, 2.89], [20498, 1, 4, 0.93], [5513, 2, 4, 0.52], [1070, 7, 8, 1.39], [996, 2, 5, 1.12], [8898, 3, 7, 2.67], [14037, 3, 5, 0.47], [346, 3, 5, 0.46], [1091, 1, 4, 0.2], [12661, 1, 5, 2.6], [20498, 3, 8, 1.27], [1519, 3, 14, 0.22], [6097, 29, 4, 0.2], [27, 1, 4, 0.76], [8274, 3, 6, 1.09], [24, 1, 5, 1.85], [13034, 3, 6, 1.01], [22317, 3, 6, 0.51], [4203, 1, 6, 0.28], [10529, 29, 4, 1.44], [11490, 1, 4, 0.51], [1413, 15, 4, 0.62], [336, 15, 4, 0.2], [6097, 80, 4, 0.66], [24664, 2, 6, 1.37], [11767, 1, 5, 0.22], [23611, 3, 4, 1.3], [34, 1, 4, 2.06], [9082, 3, 18, 0.83], [2104, 3, 7, 1.63], [6098, 80, 4, 1.65], [66, 1, 4, 0.45], [11769, 1, 4, 0.22], [5811, 3, 4, 1.11], [10780, 10, 4, 2.53], [6098, 29, 4, 1.04], [38, 1, 4, 2.06], [39, 1, 4, 2.06], [66, 16, 4, 0.22], [2109, 3, 9, 0.2], [6935, 2, 297, 3.75], [362, 2, 133, 2.83], [2049, 3, 541, 2.4], [589, 2, 152, 1.9], [3, 2, 112, 3.42], [75, 2, 145, 4.14], [141, 2, 153, 3.64], [8672, 2, 280, 3.56], [1776, 1, 107, 3.72], [130, 1, 56, 1.97], [205, 2, 38, 3.04], [8915, 2, 201, 1.81], [151, 1, 46, 1.94], [2778, 2, 139, 3.71], [305, 2, 146, 3.28], [1777, 1, 107, 4.38], [6936, 2, 283, 5.08], [8648, 2, 199, 5.86], [990, 2, 50, 1.95], [88, 10, 564, 4.25], [83, 2, 53, 2.36], [1007, 2, 266, 2.24], [345, 3, 298, 2.54], [5151, 2, 28, 2.64], [412, 1, 66, 3.99], [361, 2, 81, 3.83], [201, 3, 298, 2.45], [22247, 2, 278, 3.6], [21793, 1, 243, 6.0], [10149, 3, 855, 5.41], [45, 2, 111, 5.3], [12721, 2, 278, 3.19], [7004, 1, 78, 2.9], [10825, 21, 643, 3.29], [2054, 3, 461, 4.41], [167, 3, 225, 3.97], [413, 1, 84, 4.22], [2057, 3, 461, 4.6], [308, 1, 165, 3.66], [5005, 1, 140, 1.87], [74, 1, 199, 5.17], [6158, 2, 137, 3.67], [168, 3, 400, 4.04], [1446, 2, 159, 1.99], [346, 1, 161, 1.87], [432, 3, 293, 3.01], [13028, 3, 145, 3.58], [10, 2, 36, 3.2], [7036, 1, 126, 6.0], [3495, 3, 977, 4.24], [214, 3, 643, 2.17], [5081, 2, 189, 3.46], [79, 1, 47, 2.5], [5208, 3, 535, 4.61], [9827, 3, 85, 3.51], [3889, 1, 122, 4.36], [1492, 1, 39, 1.76], [95, 3, 1086, 4.79], [5812, 3, 211, 3.46], [3893, 1, 122, 3.83], [13260, 29, 72, 3.5], [1504, 2, 182, 3.72], [7005, 1, 64, 2.9]]</t>
-  </si>
-  <si>
-    <t>[[589, 2, 6, 0.2], [88, 10, 12, 0.19], [8915, 2, 5, 0.2], [6935, 2, 8, 1.69], [2778, 2, 5, 0.2], [305, 2, 6, 0.45], [2328, 2, 4, 0.2], [615, 2, 4, 0.46], [326, 2, 6, 0.72], [6936, 2, 6, 1.66], [8648, 2, 5, 1.95], [8650, 2, 6, 2.46], [1446, 2, 4, 0.2], [434, 2, 4, 0.52], [205, 2, 4, 1.12], [10, 2, 6, 0.2], [144, 2, 6, 1.04], [151, 1, 4, 0.36], [94, 4, 4, 1.71], [7036, 1, 4, 1.21], [7886, 4, 4, 0.73], [141, 2, 4, 0.67], [1504, 2, 4, 1.01], [146, 2, 7, 1.32], [362, 2, 4, 1.56], [3891, 1, 4, 0.64], [21793, 1, 5, 1.56], [206, 2, 4, 0.96], [8649, 2, 4, 0.75], [11404, 2, 4, 0.42], [10993, 2, 5, 0.2], [5208, 3, 7, 0.54], [2054, 3, 5, 2.22], [3980, 4, 5, 0.98], [7005, 1, 4, 0.66], [11234, 2, 4, 1.4], [12870, 1, 4, 0.47], [145, 2, 4, 1.75], [5165, 1, 4, 0.65], [2912, 1, 4, 1.9], [8672, 2, 4, 1.69], [20927, 1, 4, 1.92], [10149, 3, 10, 1.1], [7887, 4, 4, 0.97], [998, 2, 5, 1.6], [9760, 29, 4, 0.98], [2436, 4, 4, 0.45], [417, 2, 4, 0.92], [997, 2, 4, 1.26], [142, 2, 4, 0.79], [2424, 80, 6, 1.11], [3, 2, 5, 0.2], [6158, 2, 4, 0.67], [9491, 21, 10, 0.83], [972, 3, 7, 0.51], [523, 2, 4, 0.55], [3495, 3, 10, 1.48], [11770, 1, 4, 1.36], [214, 3, 9, 0.38], [7573, 1, 9, 2.96], [11953, 1, 4, 1.0], [74, 1, 4, 1.99], [24257, 1, 4, 0.48], [5165, 2, 5, 0.65], [996, 2, 4, 0.95], [12721, 2, 4, 1.37], [2423, 80, 4, 0.72], [11772, 1, 4, 0.93], [8677, 3, 5, 1.3], [2912, 2, 7, 1.9], [6497, 1, 4, 0.97], [3981, 3, 11, 0.51], [1622, 1, 4, 0.8], [22317, 3, 4, 0.42], [8898, 3, 4, 0.75], [2438, 2, 5, 0.48], [2424, 29, 4, 0.81], [5434, 1, 4, 0.62], [823, 1, 4, 1.04], [4253, 1, 4, 0.39], [9372, 1, 4, 1.24], [3975, 4, 4, 1.2], [33, 1, 4, 0.75], [7567, 3, 4, 0.41], [6496, 1, 4, 0.51], [24258, 1, 4, 0.84], [2805, 137, 4, 1.6], [9081, 3, 7, 0.5], [9082, 3, 19, 0.83], [37, 1, 4, 0.75], [5946, 1, 4, 0.35], [11812, 1, 4, 0.48], [335, 3, 9, 0.49], [1519, 3, 10, 0.39], [8676, 2, 4, 1.69], [12764, 2, 5, 0.35], [10407, 10, 8, 1.17], [220, 4, 4, 1.76], [972, 1, 4, 0.84], [6097, 80, 4, 0.71], [23611, 3, 5, 1.3], [1243, 2, 4, 0.51], [10388, 2, 4, 0.55], [1703, 2, 4, 0.42], [161, 3, 6, 1.29], [1414, 15, 4, 0.44], [1274, 1, 4, 0.49], [95, 3, 11, 0.46], [38, 1, 4, 0.75], [11490, 1, 4, 0.44], [35, 1, 4, 0.75], [11236, 2, 4, 0.62], [22247, 2, 4, 1.23], [12212, 29, 4, 0.53], [4232, 80, 4, 1.27], [2104, 3, 9, 0.5], [1895, 3, 4, 2.5], [10631, 2, 4, 1.25], [8659, 1, 4, 0.41], [11813, 1, 4, 0.88], [13893, 2, 4, 1.17], [11235, 2, 4, 1.32], [10093, 3, 8, 0.92], [12501, 1, 4, 1.24], [8635, 3, 4, 0.87], [788, 2, 4, 0.51], [5164, 1, 4, 0.64], [8274, 3, 4, 0.87], [1309, 1, 4, 0.45], [4940, 1, 4, 0.44], [8104, 1, 4, 1.55], [10780, 10, 4, 1.03], [19931, 1, 4, 1.26], [13034, 3, 4, 1.52], [10386, 2, 4, 1.34], [11942, 29, 4, 0.91], [5151, 2, 4, 1.03], [589, 2, 168, 2.97], [88, 10, 627, 3.92], [8915, 2, 210, 3.09], [6935, 2, 311, 6.0], [2778, 2, 171, 4.06], [305, 2, 163, 3.77], [2328, 2, 166, 4.53], [615, 2, 126, 2.27], [326, 2, 43, 3.6], [6936, 2, 311, 6.0], [8648, 2, 245, 4.73], [8650, 2, 245, 6.0], [1446, 2, 166, 3.92], [434, 2, 124, 2.2], [144, 2, 71, 3.98], [151, 1, 16, 1.36], [7036, 1, 150, 3.53], [141, 2, 170, 3.73], [1504, 2, 236, 3.98], [146, 2, 168, 3.93], [362, 2, 49, 3.89], [3891, 1, 144, 2.69], [21793, 1, 269, 3.6], [206, 2, 118, 3.05], [8649, 2, 258, 4.24], [11404, 2, 121, 2.01], [3980, 4, 557, 2.92], [7005, 1, 91, 3.02], [11234, 2, 64, 3.59], [12870, 1, 161, 2.62], [5165, 1, 55, 3.24], [2912, 1, 52, 4.93], [8672, 2, 328, 4.45], [10149, 3, 1038, 3.48], [998, 2, 245, 5.45], [9760, 29, 41, 2.96], [2436, 4, 127, 2.94], [417, 2, 170, 3.73], [997, 2, 277, 3.63], [142, 2, 179, 3.58], [2424, 80, 189, 4.36], [3, 2, 128, 4.46], [6158, 2, 301, 3.64], [9491, 21, 2565, 2.94], [972, 3, 652, 4.02], [523, 2, 170, 2.64], [3495, 3, 1114, 4.13], [11770, 1, 250, 4.82], [214, 3, 228, 1.59], [7573, 1, 379, 6.0], [11953, 1, 230, 3.13], [74, 1, 227, 5.04], [24257, 1, 153, 2.9], [5165, 2, 439, 3.24], [996, 2, 277, 3.03], [12721, 2, 326, 3.84], [2423, 80, 215, 2.59], [11772, 1, 246, 4.17], [8677, 3, 306, 3.95], [2912, 2, 415, 4.94], [6497, 1, 43, 3.07], [3981, 3, 1942, 2.23], [1622, 1, 120, 4.39]]</t>
-  </si>
-  <si>
-    <t>[[305, 2, 4, 0.51], [2778, 2, 6, 0.2], [6936, 2, 6, 1.35], [205, 2, 6, 0.2], [88, 10, 9, 0.19], [144, 2, 5, 0.47], [1504, 2, 4, 0.36], [589, 2, 5, 0.2], [326, 2, 5, 0.45], [8915, 2, 5, 1.11], [8650, 2, 6, 1.21], [7036, 1, 4, 1.73], [593, 2, 7, 0.78], [2775, 2, 4, 0.81], [141, 2, 7, 0.78], [206, 2, 4, 0.65], [3980, 4, 6, 1.19], [7004, 1, 4, 1.19], [3891, 1, 4, 0.2], [2050, 3, 5, 1.68], [8853, 2, 4, 1.18], [7885, 4, 5, 0.2], [7886, 4, 6, 0.4], [2328, 2, 4, 0.2], [146, 2, 6, 1.32], [2055, 3, 6, 1.73], [2054, 3, 6, 1.85], [10, 2, 5, 0.2], [5491, 2, 4, 0.36], [362, 2, 6, 0.82], [8672, 2, 4, 0.98], [12870, 1, 6, 1.65], [8649, 2, 4, 0.71], [10993, 2, 5, 0.38], [3975, 4, 4, 1.39], [2057, 3, 5, 2.02], [21793, 1, 4, 1.93], [12349, 1, 4, 1.03], [5165, 1, 4, 0.65], [1446, 2, 4, 1.15], [13028, 3, 4, 0.62], [3982, 3, 14, 1.66], [5208, 3, 4, 1.03], [75, 2, 5, 0.46], [2991, 3, 4, 2.17], [523, 2, 5, 1.03], [145, 2, 4, 1.55], [7005, 1, 4, 0.97], [94, 4, 4, 1.88], [3495, 3, 13, 1.14], [11404, 2, 4, 0.42], [20927, 1, 4, 1.67], [997, 2, 5, 0.77], [6158, 2, 5, 2.18], [192, 3, 12, 0.77], [2912, 1, 4, 1.89], [82, 2, 5, 0.91], [22316, 3, 6, 0.51], [417, 2, 4, 0.48], [5165, 2, 5, 0.9], [7567, 3, 4, 0.71], [998, 2, 5, 0.91], [11769, 1, 5, 0.71], [389, 4, 4, 1.1], [1492, 1, 5, 0.23], [11953, 1, 4, 0.51], [4176, 4, 6, 1.31], [346, 3, 5, 1.03], [996, 2, 7, 1.72], [11767, 1, 4, 0.66], [5946, 1, 4, 0.85], [6496, 1, 4, 0.49], [8677, 3, 5, 1.15], [37, 1, 4, 1.5], [12721, 2, 4, 0.9], [972, 3, 5, 2.18], [4253, 1, 4, 0.88], [74, 1, 4, 1.04], [11490, 1, 4, 0.79], [22317, 3, 6, 0.26], [411, 2, 4, 0.64], [12212, 29, 4, 0.2], [2104, 3, 6, 0.51], [1413, 15, 4, 0.45], [345, 3, 4, 0.5], [3979, 3, 6, 1.18], [336, 15, 5, 1.42], [11085, 2, 7, 1.78], [2912, 2, 5, 1.89], [8121, 3, 4, 0.5], [1274, 1, 4, 1.01], [201, 3, 5, 0.76], [1277, 1, 4, 0.98], [14037, 3, 4, 1.47], [3, 2, 4, 0.53], [13023, 3, 5, 1.77], [21269, 3, 4, 1.0], [823, 1, 4, 0.48], [38, 1, 4, 1.42], [6494, 1, 4, 0.44], [8673, 2, 4, 2.39], [36, 1, 4, 1.5], [12271, 2, 4, 1.13], [5209, 3, 5, 1.03], [9784, 1, 4, 0.85], [10408, 10, 5, 1.16], [8676, 2, 4, 1.45], [1414, 15, 4, 0.44], [22247, 2, 4, 1.07], [2805, 137, 4, 1.9], [20498, 3, 5, 0.4], [34, 1, 4, 1.42], [9081, 3, 7, 0.56], [3577, 25, 4, 0.45], [95, 3, 11, 0.5], [10936, 2, 4, 0.45], [2878, 1, 4, 1.41], [24257, 1, 4, 1.18], [11812, 1, 4, 0.48], [10388, 2, 4, 1.26], [346, 1, 4, 0.47], [79, 1, 4, 0.43], [13928, 1, 4, 0.82], [161, 3, 5, 1.29], [13035, 3, 4, 1.32], [491, 10, 7, 0.84], [83, 2, 4, 0.41], [3576, 25, 4, 0.66], [10407, 10, 6, 1.33], [1523, 1, 4, 0.6], [19047, 3, 4, 1.34], [9069, 1, 4, 0.42], [9082, 3, 18, 0.83], [13244, 1, 4, 0.4], [972, 1, 4, 0.92], [7704, 2, 4, 0.89], [10937, 2, 4, 0.45], [305, 2, 152, 3.88], [2778, 2, 153, 2.45], [6936, 2, 284, 6.0], [205, 2, 112, 2.9], [88, 10, 587, 3.79], [144, 2, 156, 3.98], [1504, 2, 221, 3.02], [589, 2, 167, 1.74], [326, 2, 101, 2.82], [8915, 2, 195, 3.08], [8650, 2, 229, 5.42], [7036, 1, 133, 5.22], [593, 2, 210, 3.41], [2775, 2, 153, 3.42], [141, 2, 158, 4.17], [206, 2, 39, 2.88], [3980, 4, 493, 5.32], [7004, 1, 80, 3.89], [3891, 1, 128, 2.8], [2050, 3, 466, 6.0], [8853, 2, 299, 5.35], [2328, 2, 149, 2.19], [146, 2, 55, 3.93], [2055, 3, 466, 6.0], [2054, 3, 466, 6.0], [5491, 2, 118, 1.82], [362, 2, 51, 4.11], [8672, 2, 291, 5.33], [12870, 1, 141, 6.0], [8649, 2, 242, 4.17], [10993, 2, 55, 3.19], [3975, 4, 493, 4.15], [2057, 3, 466, 6.0], [21793, 1, 262, 4.91], [12349, 1, 656, 4.23], [5165, 1, 51, 3.25], [1446, 2, 37, 3.1], [13028, 3, 159, 2.38], [3982, 3, 811, 5.26], [75, 2, 151, 2.27], [2991, 3, 164, 5.3], [523, 2, 158, 4.0], [7005, 1, 80, 3.02], [3495, 3, 931, 5.24], [11404, 2, 114, 1.94], [997, 2, 232, 4.4], [192, 3, 1177, 5.06], [2912, 1, 48, 4.84], [22316, 3, 324, 3.42], [417, 2, 167, 2.05], [5165, 2, 369, 3.48], [7567, 3, 75, 3.82], [998, 2, 232, 4.4], [11769, 1, 165, 3.79], [389, 4, 196, 3.25], [1492, 1, 36, 2.3], [11953, 1, 215, 2.98], [4176, 4, 493, 5.7], [996, 2, 247, 5.21], [11767, 1, 174, 2.39], [5946, 1, 135, 2.77], [6496, 1, 44, 2.07], [8677, 3, 296, 5.22]]</t>
-  </si>
-  <si>
-    <t>[[141, 2, 5, 0.2], [362, 2, 4, 0.44], [361, 2, 4, 0.2], [8650, 2, 4, 1.71], [5491, 2, 5, 0.2], [5493, 2, 4, 0.51], [11685, 2, 4, 0.2], [417, 2, 5, 0.2], [326, 2, 5, 0.55], [8672, 2, 5, 1.21], [6935, 2, 13, 1.06], [205, 2, 4, 0.2], [1124, 2, 6, 0.32], [11681, 2, 5, 0.49], [11838, 2, 6, 0.63], [12721, 2, 6, 0.48], [248, 1, 5, 0.2], [8915, 2, 5, 0.2], [11837, 2, 4, 1.32], [142, 2, 4, 0.2], [6936, 2, 6, 1.25], [2778, 2, 6, 0.2], [1446, 2, 4, 1.04], [8676, 2, 4, 1.21], [21793, 1, 4, 1.39], [305, 2, 6, 1.23], [22247, 2, 4, 1.1], [11835, 2, 4, 1.5], [616, 2, 6, 0.2], [593, 2, 5, 0.78], [411, 2, 4, 0.89], [10574, 3, 5, 0.47], [990, 2, 4, 0.47], [8673, 2, 4, 0.97], [2775, 2, 4, 0.23], [145, 2, 4, 0.91], [6158, 2, 5, 0.45], [11836, 2, 4, 1.4], [2055, 3, 4, 0.8], [3495, 3, 13, 1.54], [88, 10, 8, 0.6], [10149, 3, 13, 1.25], [75, 2, 4, 0.57], [146, 2, 4, 0.91], [2054, 3, 4, 0.8], [2057, 3, 4, 0.8], [7705, 2, 4, 0.45], [61, 3, 4, 0.2], [7885, 4, 4, 0.46], [2424, 29, 4, 0.75], [7704, 2, 6, 1.15], [144, 2, 4, 0.91], [5165, 1, 4, 0.86], [2859, 15, 4, 0.58], [2423, 29, 4, 0.79], [2423, 80, 4, 0.79], [201, 3, 6, 1.01], [308, 1, 7, 1.86], [1414, 15, 4, 0.44], [335, 3, 10, 0.49], [7706, 2, 4, 0.45], [60, 3, 5, 0.55], [9126, 1, 4, 1.42], [13028, 3, 4, 1.23], [2424, 80, 4, 0.72], [214, 3, 9, 0.57], [1519, 3, 9, 0.39], [345, 3, 4, 0.47], [13034, 3, 5, 1.37], [13023, 3, 6, 1.51], [11770, 1, 4, 1.74], [2703, 3, 4, 1.7], [432, 3, 4, 1.23], [410, 1, 4, 0.52], [6494, 1, 4, 1.67], [3430, 15, 4, 0.8], [94, 4, 4, 0.48], [1886, 2, 4, 0.37], [1492, 1, 4, 0.87], [13928, 1, 4, 0.75], [20927, 1, 4, 0.67], [3893, 1, 4, 1.55], [3891, 1, 4, 1.55], [2331, 1, 4, 0.79], [3981, 3, 8, 0.51], [13033, 3, 4, 0.5], [11811, 1, 4, 0.38], [11952, 1, 4, 1.18], [9690, 1, 4, 0.54], [11089, 1, 4, 0.46], [5733, 2, 5, 1.16], [6097, 80, 4, 1.17], [952, 4, 4, 1.5], [7886, 4, 4, 0.44], [5812, 3, 4, 1.51], [1274, 1, 4, 1.18], [1309, 1, 4, 1.14], [22558, 3, 4, 2.17], [944, 15, 4, 0.39], [5946, 1, 4, 1.55], [114, 3, 4, 0.36], [7708, 2, 4, 0.45], [105, 3, 4, 0.35], [10410, 10, 6, 1.21], [95, 3, 8, 1.05], [10407, 10, 6, 1.21], [3478, 2, 4, 1.03], [5584, 3, 4, 1.15], [7703, 2, 4, 0.45], [3980, 4, 4, 1.26], [8274, 3, 4, 0.87], [9082, 3, 15, 0.83], [3889, 1, 4, 1.55], [13264, 29, 4, 0.49], [20555, 2, 4, 0.45], [10408, 10, 6, 1.21], [192, 3, 13, 2.07], [10398, 2, 4, 0.49], [5811, 3, 4, 2.0], [2805, 137, 5, 2.33], [7005, 1, 4, 0.86], [823, 1, 4, 2.45], [5165, 2, 5, 0.84], [6630, 3, 4, 1.22], [11603, 2, 4, 0.36], [963, 3, 4, 0.89], [13263, 29, 4, 0.55], [6497, 1, 4, 1.36], [21003, 2, 4, 0.72], [12229, 2, 4, 0.7], [14041, 3, 5, 0.63], [13928, 2, 4, 0.75], [10516, 3, 4, 0.99], [9491, 21, 10, 3.02], [186, 3, 7, 1.23], [141, 2, 168, 1.94], [362, 2, 152, 2.16], [361, 2, 151, 2.34], [8650, 2, 203, 5.6], [5491, 2, 100, 2.58], [5493, 2, 116, 2.29], [11685, 2, 291, 4.27], [417, 2, 151, 2.27], [326, 2, 89, 2.74], [8672, 2, 303, 4.46], [6935, 2, 291, 6.0], [205, 2, 100, 2.3], [1124, 2, 174, 3.15], [11681, 2, 307, 2.72], [11838, 2, 239, 4.54], [12721, 2, 261, 4.74], [11837, 2, 239, 3.85], [142, 2, 151, 2.36], [6936, 2, 291, 5.86], [2778, 2, 145, 4.12], [1446, 2, 61, 3.0], [8676, 2, 303, 3.65], [21793, 1, 261, 4.37], [305, 2, 40, 3.77], [22247, 2, 302, 3.43], [11835, 2, 239, 4.21], [616, 2, 100, 2.77], [593, 2, 243, 2.76], [411, 2, 72, 2.91], [10574, 3, 547, 2.34], [990, 2, 56, 2.21], [8673, 2, 274, 4.47], [2775, 2, 151, 2.48], [145, 2, 163, 3.06], [6158, 2, 281, 2.65], [11836, 2, 269, 4.76], [2055, 3, 501, 2.91], [3495, 3, 1026, 4.33], [88, 10, 611, 2.63], [10149, 3, 956, 3.54], [75, 2, 154, 2.67], [146, 2, 163, 3.06], [2054, 3, 501, 2.85], [2057, 3, 501, 2.91], [7705, 2, 187, 2.71], [61, 3, 201, 2.25], [2424, 29, 36, 3.81], [7704, 2, 162, 4.3], [144, 2, 163, 3.06], [5165, 1, 51, 2.97], [2859, 15, 73, 2.43], [2423, 29, 39, 3.13], [2423, 80, 197, 3.13], [201, 3, 276, 4.48], [308, 1, 172, 6.0], [1414, 15, 105, 2.16], [335, 3, 1391, 2.27], [7706, 2, 187, 2.83], [60, 3, 857, 2.58], [9126, 1, 74, 4.04], [13028, 3, 155, 5.21], [2424, 80, 181, 3.79], [214, 3, 692, 2.34], [1519, 3, 652, 1.72], [345, 3, 320, 2.21]]</t>
-  </si>
-  <si>
-    <t>[[2778, 2, 10, 0.2], [305, 2, 5, 0.23], [6936, 2, 5, 1.17], [8672, 2, 5, 1.21], [2775, 2, 4, 0.47], [8853, 2, 4, 0.83], [145, 2, 5, 0.92], [2776, 2, 4, 1.06], [12721, 2, 6, 1.21], [2327, 2, 5, 0.2], [361, 2, 5, 0.4], [146, 2, 5, 0.62], [8675, 2, 5, 0.73], [11681, 2, 5, 0.21], [141, 2, 4, 0.4], [8673, 2, 7, 0.73], [205, 2, 5, 1.47], [308, 1, 7, 0.49], [8676, 2, 4, 1.21], [1124, 2, 5, 0.54], [11835, 2, 4, 1.79], [144, 2, 5, 1.42], [417, 2, 4, 0.4], [9507, 3, 4, 0.49], [8650, 2, 5, 1.28], [11837, 2, 4, 1.62], [8648, 2, 4, 0.65], [3, 2, 6, 1.09], [6097, 80, 5, 2.57], [2423, 29, 4, 1.44], [6097, 29, 4, 2.58], [6497, 1, 4, 1.36], [11836, 2, 4, 1.7], [990, 2, 4, 0.2], [593, 2, 5, 1.55], [6098, 80, 4, 2.49], [88, 10, 8, 0.6], [11739, 2, 4, 0.49], [523, 2, 4, 0.76], [2423, 80, 5, 0.87], [13260, 29, 4, 1.4], [8915, 2, 4, 0.45], [6494, 1, 4, 1.67], [6158, 2, 5, 0.45], [326, 2, 4, 0.55], [75, 2, 5, 1.81], [1339, 1, 4, 0.43], [378, 2, 4, 1.28], [411, 2, 4, 0.74], [1492, 1, 4, 0.87], [151, 1, 4, 0.45], [335, 3, 10, 0.49], [1050, 2, 4, 0.85], [2859, 15, 4, 0.63], [6496, 1, 4, 0.66], [61, 3, 6, 0.2], [13264, 29, 4, 0.52], [1049, 2, 4, 1.1], [345, 3, 4, 0.36], [10149, 3, 13, 1.25], [7704, 2, 4, 1.11], [964, 15, 4, 0.59], [432, 3, 4, 1.65], [1243, 2, 4, 1.11], [13259, 29, 4, 0.41], [22558, 3, 4, 2.17], [7705, 2, 6, 2.04], [201, 3, 4, 1.02], [5208, 3, 8, 1.79], [2912, 1, 4, 1.99], [186, 3, 7, 0.67], [229, 1, 4, 1.04], [21793, 1, 4, 1.45], [2438, 1, 4, 0.85], [12229, 2, 4, 0.45], [13928, 1, 4, 0.71], [3478, 2, 4, 0.83], [7706, 2, 4, 1.23], [10407, 10, 6, 1.21], [11738, 2, 4, 0.49], [2703, 3, 4, 1.7], [9507, 1, 4, 0.44], [11844, 2, 4, 0.63], [11490, 1, 4, 0.74], [7036, 1, 4, 0.76], [94, 4, 4, 0.48], [11687, 2, 4, 0.9], [1886, 2, 4, 0.37], [11404, 2, 4, 0.42], [114, 3, 4, 0.41], [159, 16, 4, 0.47], [10408, 10, 6, 1.21], [956, 2, 4, 0.52], [7708, 2, 4, 1.23], [20927, 1, 4, 1.66], [2438, 2, 5, 0.76], [10406, 10, 7, 1.21], [9065, 2, 4, 0.78], [11689, 2, 4, 0.89], [12870, 1, 4, 0.94], [22125, 2, 4, 0.36], [152, 21, 4, 0.5], [11690, 2, 4, 0.65], [7005, 1, 4, 1.13], [1274, 1, 4, 1.5], [2991, 3, 4, 2.17], [11161, 1, 5, 0.89], [13259, 25, 4, 0.41], [5769, 3, 6, 0.26], [2805, 137, 5, 0.92], [159, 1, 4, 0.45], [4253, 1, 4, 0.43], [3495, 3, 13, 1.54], [5584, 3, 4, 1.15], [7007, 1, 4, 1.13], [5976, 1, 4, 2.31], [9690, 1, 4, 0.51], [9239, 29, 4, 1.36], [9209, 29, 4, 1.53], [11811, 1, 4, 0.38], [9491, 21, 10, 1.42], [9239, 25, 4, 1.36], [7886, 4, 4, 0.45], [8600, 1, 4, 0.36], [5769, 1, 4, 0.46], [7567, 3, 4, 0.83], [96, 11, 15, 1.09], [24257, 1, 4, 1.04], [95, 3, 8, 0.38], [247, 1, 4, 1.28], [21269, 3, 4, 2.75], [20555, 2, 4, 0.45], [13198, 29, 4, 0.94], [1691, 1, 4, 2.29], [5209, 3, 5, 1.79], [9372, 1, 4, 1.37], [2778, 2, 166, 2.39], [305, 2, 136, 3.77], [6936, 2, 261, 5.68], [8672, 2, 303, 4.46], [2775, 2, 150, 2.95], [8853, 2, 307, 2.91], [145, 2, 76, 3.71], [2776, 2, 166, 3.35], [12721, 2, 261, 4.97], [2327, 2, 138, 5.11], [361, 2, 149, 2.33], [146, 2, 139, 3.93], [8675, 2, 269, 3.17], [11681, 2, 289, 3.99], [141, 2, 149, 2.77], [8673, 2, 262, 5.33], [308, 1, 180, 3.47], [8676, 2, 303, 3.65], [1124, 2, 178, 3.3], [11835, 2, 266, 4.84], [144, 2, 41, 3.98], [417, 2, 145, 3.66], [9507, 3, 54, 1.69], [8650, 2, 203, 6.0], [11837, 2, 266, 4.5], [8648, 2, 238, 4.54], [3, 2, 110, 4.24], [2423, 29, 36, 4.49], [6497, 1, 38, 4.63], [11836, 2, 266, 4.66], [990, 2, 48, 2.56], [593, 2, 90, 3.73], [88, 10, 611, 2.63], [11739, 2, 61, 2.68], [523, 2, 149, 3.27], [2423, 80, 176, 3.28], [13260, 29, 77, 4.01], [8915, 2, 204, 2.18], [6494, 1, 51, 4.6], [6158, 2, 281, 2.65], [326, 2, 98, 2.49], [75, 2, 132, 4.81], [1339, 1, 66, 2.51], [378, 2, 238, 3.84], [411, 2, 115, 2.73], [1492, 1, 39, 2.98], [151, 1, 17, 2.47], [335, 3, 1391, 2.27], [1050, 2, 30, 2.39], [2859, 15, 73, 2.52], [6496, 1, 43, 2.58], [61, 3, 201, 2.74], [13264, 29, 77, 2.31], [345, 3, 319, 2.34], [10149, 3, 956, 3.54], [7704, 2, 187, 3.46], [432, 3, 276, 4.49], [1243, 2, 104, 3.52], [13259, 29, 37, 2.9], [22558, 3, 481, 5.49], [201, 3, 319, 3.28], [5208, 3, 559, 4.95], [2912, 1, 48, 5.22], [186, 3, 703, 2.92]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 5, 0.91], [141, 2, 4, 0.2], [2778, 2, 8, 0.2], [361, 2, 4, 0.2], [6935, 2, 12, 1.05], [205, 2, 4, 1.29], [12721, 2, 8, 0.96], [8676, 2, 5, 1.1], [417, 2, 5, 0.2], [2049, 3, 15, 0.2], [3, 2, 4, 0.97], [248, 1, 4, 0.48], [8675, 2, 5, 0.73], [22247, 2, 4, 1.0], [6936, 2, 5, 0.47], [523, 2, 5, 0.2], [305, 2, 6, 0.73], [8650, 2, 5, 1.33], [11838, 2, 5, 0.63], [2328, 2, 5, 0.79], [2776, 2, 4, 0.69], [8648, 2, 4, 0.65], [2327, 2, 4, 0.2], [8853, 2, 4, 0.83], [11739, 2, 4, 0.58], [11837, 2, 4, 1.9], [6497, 1, 4, 1.36], [411, 2, 4, 0.89], [412, 1, 4, 1.06], [2805, 137, 5, 0.39], [6097, 80, 6, 2.11], [6097, 29, 4, 0.98], [11835, 2, 4, 1.45], [146, 2, 4, 0.91], [583, 2, 5, 0.76], [326, 2, 4, 0.55], [10149, 3, 13, 0.92], [145, 2, 4, 0.91], [11836, 2, 4, 1.35], [144, 2, 4, 0.91], [75, 2, 4, 1.81], [10574, 3, 5, 0.68], [6494, 1, 5, 0.22], [2055, 3, 4, 0.8], [2057, 3, 4, 0.8], [2422, 29, 4, 1.01], [6496, 1, 4, 0.67], [2054, 3, 5, 1.08], [6098, 80, 4, 0.83], [6098, 29, 4, 0.59], [1243, 2, 4, 1.3], [1886, 2, 4, 0.37], [8915, 2, 4, 0.45], [21793, 1, 4, 1.45], [1492, 1, 4, 0.87], [944, 15, 4, 0.38], [247, 1, 4, 0.61], [3478, 2, 4, 0.86], [7084, 3, 4, 2.21], [5165, 1, 4, 0.86], [2859, 15, 4, 0.58], [6158, 2, 5, 0.67], [335, 3, 10, 0.49], [201, 3, 4, 0.51], [192, 3, 13, 1.24], [13928, 1, 4, 0.69], [5208, 3, 8, 1.44], [3934, 5, 7, 1.47], [5812, 3, 4, 0.66], [107, 2, 4, 0.54], [11489, 1, 4, 0.63], [24722, 2, 4, 0.2], [4253, 1, 4, 0.43], [94, 4, 4, 0.48], [1519, 3, 9, 0.39], [186, 3, 7, 0.67], [214, 3, 9, 0.57], [9491, 21, 10, 1.29], [5811, 3, 4, 2.0], [1703, 2, 4, 0.5], [1050, 2, 4, 0.85], [11767, 1, 4, 0.85], [5813, 3, 5, 0.66], [8938, 2, 4, 1.01], [61, 3, 4, 0.2], [1309, 1, 4, 1.14], [10398, 2, 4, 1.44], [2991, 3, 4, 2.17], [3495, 3, 13, 1.54], [13260, 29, 4, 1.58], [2438, 2, 5, 0.76], [11769, 1, 4, 0.85], [11671, 1, 4, 1.7], [8599, 1, 4, 3.81], [11811, 1, 4, 0.38], [229, 1, 4, 1.04], [8943, 3, 4, 0.72], [19687, 1, 4, 1.21], [2104, 3, 6, 0.47], [13928, 2, 4, 0.69], [1049, 2, 4, 0.85], [7036, 1, 4, 0.76], [5584, 3, 4, 1.15], [10124, 1, 4, 2.17], [7004, 1, 4, 0.53], [955, 2, 4, 0.44], [11808, 1, 4, 1.82], [9690, 1, 4, 0.38], [22573, 2, 4, 1.08], [18964, 1, 4, 1.13], [3334, 5, 4, 0.39], [6575, 3, 4, 0.71], [8274, 3, 4, 0.87], [20927, 1, 4, 1.86], [45, 2, 4, 1.79], [1523, 1, 4, 2.32], [9239, 29, 4, 1.36], [4001, 3, 8, 0.93], [2438, 1, 4, 0.71], [105, 3, 4, 0.4], [11678, 1, 4, 1.58], [13258, 29, 5, 1.12], [1277, 1, 4, 1.91], [19685, 1, 4, 1.38], [1701, 2, 4, 0.67], [11886, 2, 4, 0.73], [3477, 2, 4, 1.1], [7567, 3, 4, 1.18], [21269, 3, 4, 2.75], [9209, 29, 4, 2.15], [5165, 2, 5, 0.84], [3984, 3, 5, 0.62], [10181, 26, 5, 0.46], [8635, 3, 4, 0.87], [7005, 1, 4, 1.33], [8672, 2, 263, 4.66], [141, 2, 144, 3.6], [2778, 2, 158, 3.12], [361, 2, 150, 3.05], [6935, 2, 291, 6.0], [12721, 2, 262, 5.36], [8676, 2, 263, 4.38], [417, 2, 150, 3.05], [2049, 3, 328, 2.4], [3, 2, 47, 4.13], [248, 1, 22, 1.92], [8675, 2, 274, 3.37], [22247, 2, 303, 3.24], [6936, 2, 269, 3.46], [523, 2, 144, 3.5], [305, 2, 135, 3.77], [8650, 2, 214, 5.0], [11838, 2, 239, 5.02], [2328, 2, 138, 4.16], [2776, 2, 150, 3.89], [8648, 2, 238, 4.54], [2327, 2, 138, 4.26], [8853, 2, 307, 2.91], [11739, 2, 61, 2.77], [11837, 2, 270, 5.03], [6497, 1, 38, 4.63], [411, 2, 104, 3.04], [412, 1, 88, 3.35], [2805, 137, 187, 3.68], [6097, 29, 37, 3.2], [11835, 2, 270, 4.85], [146, 2, 163, 3.06], [583, 2, 87, 3.09], [326, 2, 98, 2.49], [10149, 3, 963, 2.95], [145, 2, 163, 3.06], [11836, 2, 270, 4.63], [144, 2, 163, 3.06], [75, 2, 137, 4.79], [10574, 3, 544, 2.8], [6494, 1, 50, 4.6], [2055, 3, 451, 4.27], [2057, 3, 126, 4.32], [2422, 29, 40, 3.25], [6496, 1, 43, 2.6], [2054, 3, 477, 4.26], [6098, 80, 72, 3.57], [6098, 29, 41, 2.45], [1243, 2, 104, 3.81], [1886, 2, 167, 2.11], [8915, 2, 204, 2.18], [21793, 1, 261, 4.51], [1492, 1, 39, 2.98], [944, 15, 12, 1.48], [247, 1, 94, 2.48], [3478, 2, 81, 2.97], [7084, 3, 133, 5.56], [5165, 1, 51, 2.97], [2859, 15, 73, 2.43], [6158, 2, 278, 2.94], [335, 3, 1391, 2.27], [201, 3, 321, 2.75], [192, 3, 1251, 5.29], [13928, 1, 51, 2.64], [5208, 3, 569, 4.95]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 7, 0.52], [305, 2, 4, 0.2], [8650, 2, 4, 1.33], [2778, 2, 6, 0.2], [141, 2, 4, 0.66], [8672, 2, 7, 2.86], [143, 2, 8, 1.9], [6936, 2, 5, 0.76], [145, 2, 4, 0.25], [11837, 2, 4, 1.57], [361, 2, 4, 0.2], [11681, 2, 5, 0.46], [417, 2, 5, 0.2], [75, 2, 5, 0.97], [205, 2, 5, 0.56], [1124, 2, 5, 0.32], [146, 2, 4, 0.57], [11737, 2, 4, 0.55], [8648, 2, 5, 1.1], [12721, 2, 5, 0.73], [8673, 2, 6, 0.2], [523, 2, 4, 0.38], [8853, 2, 5, 1.42], [615, 2, 4, 0.74], [11835, 2, 6, 1.74], [326, 2, 6, 0.85], [990, 2, 4, 0.23], [8675, 2, 5, 1.2], [88, 10, 12, 0.2], [8915, 2, 6, 1.39], [144, 2, 6, 0.91], [434, 2, 6, 0.3], [1005, 2, 5, 1.14], [11739, 2, 4, 0.92], [2424, 29, 4, 0.65], [8676, 2, 5, 2.16], [6158, 2, 7, 0.2], [7704, 2, 4, 1.0], [2423, 29, 4, 0.62], [11836, 2, 4, 1.65], [7705, 2, 4, 1.9], [2424, 80, 4, 0.65], [11738, 2, 4, 0.92], [7706, 2, 4, 1.23], [7004, 1, 4, 1.81], [3478, 2, 4, 0.8], [3, 2, 4, 0.38], [2423, 80, 4, 0.63], [1414, 15, 4, 0.37], [2859, 15, 4, 1.62], [74, 1, 4, 0.91], [3429, 15, 4, 0.2], [2055, 3, 4, 1.98], [10149, 3, 13, 1.25], [6497, 1, 4, 1.36], [18964, 1, 4, 1.13], [12343, 1, 4, 1.71], [13028, 3, 4, 1.23], [94, 4, 4, 0.48], [13928, 1, 4, 0.68], [13034, 3, 5, 1.2], [7084, 3, 4, 0.7], [411, 2, 4, 0.83], [11919, 1, 4, 0.38], [3893, 1, 4, 1.24], [6097, 80, 4, 1.09], [11089, 1, 4, 1.16], [7707, 2, 5, 1.25], [7036, 1, 4, 0.43], [1050, 2, 5, 0.85], [563, 2, 4, 0.68], [192, 3, 13, 2.07], [3891, 1, 4, 1.24], [1339, 1, 4, 0.45], [6630, 3, 4, 1.22], [6494, 1, 4, 1.67], [345, 3, 4, 0.36], [21793, 1, 4, 1.39], [1243, 2, 4, 1.3], [8274, 3, 6, 0.84], [7708, 2, 4, 1.08], [2912, 1, 4, 1.31], [13023, 3, 6, 1.51], [11581, 29, 4, 0.87], [13033, 3, 4, 0.8], [3889, 1, 4, 1.24], [11490, 1, 4, 0.64], [8943, 3, 4, 0.37], [1049, 2, 4, 0.85], [5208, 3, 8, 1.79], [12229, 2, 4, 0.7], [5940, 3, 4, 1.54], [22558, 3, 5, 0.88], [3495, 3, 13, 1.54], [5165, 1, 4, 0.86], [2331, 1, 4, 1.18], [515, 24, 4, 0.51], [201, 3, 4, 0.86], [6629, 3, 4, 0.47], [83, 2, 4, 0.5], [336, 15, 4, 0.35], [1274, 1, 4, 1.18], [7885, 4, 5, 0.56], [229, 1, 4, 1.04], [1309, 1, 4, 1.14], [5812, 3, 5, 1.01], [7005, 1, 4, 1.33], [332, 2, 4, 0.69], [951, 4, 4, 1.58], [21269, 3, 4, 2.75], [214, 3, 9, 0.57], [9690, 1, 4, 0.51], [942, 3, 4, 0.55], [2805, 137, 5, 1.57], [8898, 3, 4, 1.66], [247, 1, 4, 1.24], [335, 3, 13, 0.62], [11914, 1, 4, 0.86], [23961, 3, 4, 2.19], [20555, 2, 4, 0.73], [1703, 2, 4, 0.5], [24257, 1, 4, 1.67], [4940, 1, 4, 0.4], [9827, 3, 4, 0.52], [5811, 3, 6, 0.5], [8635, 3, 4, 0.69], [3934, 5, 7, 1.47], [7573, 1, 4, 0.81], [186, 3, 7, 1.23], [9491, 21, 10, 1.29], [114, 3, 4, 1.44], [11770, 1, 4, 1.74], [10527, 3, 8, 0.82], [13498, 3, 4, 1.32], [5584, 3, 4, 1.15], [11586, 1, 6, 1.46], [19687, 1, 4, 1.21], [6935, 2, 277, 3.62], [305, 2, 135, 3.67], [8650, 2, 225, 4.85], [2778, 2, 143, 3.54], [141, 2, 165, 2.58], [8672, 2, 260, 5.54], [143, 2, 114, 3.95], [6936, 2, 291, 6.0], [145, 2, 139, 3.71], [11837, 2, 238, 5.03], [361, 2, 149, 3.32], [11681, 2, 270, 3.74], [417, 2, 149, 3.32], [75, 2, 134, 4.68], [205, 2, 58, 3.15], [1124, 2, 180, 3.15], [146, 2, 139, 3.93], [11737, 2, 61, 2.37], [8648, 2, 214, 4.02], [12721, 2, 261, 5.11], [8673, 2, 262, 5.33], [523, 2, 149, 2.77], [8853, 2, 291, 6.0], [615, 2, 116, 2.73], [11835, 2, 238, 3.55], [326, 2, 85, 3.49], [990, 2, 51, 2.48], [8675, 2, 269, 5.16], [88, 10, 580, 3.9], [8915, 2, 51, 3.45], [144, 2, 139, 3.98], [434, 2, 57, 2.72], [11739, 2, 61, 3.11], [2424, 29, 37, 2.56], [8676, 2, 76, 5.54], [6158, 2, 241, 3.51], [7704, 2, 162, 5.16], [2423, 29, 40, 2.5], [11836, 2, 238, 4.49], [2424, 80, 184, 2.56], [11738, 2, 23, 3.24], [7706, 2, 169, 3.93], [7004, 1, 31, 4.56], [3478, 2, 81, 2.85], [3, 2, 125, 2.04], [2423, 80, 198, 2.52], [1414, 15, 106, 2.02], [74, 1, 199, 5.92], [3429, 15, 26, 2.25], [2055, 3, 446, 5.43], [10149, 3, 956, 3.54], [6497, 1, 38, 4.63], [18964, 1, 72, 3.49], [12343, 1, 629, 4.64], [13028, 3, 139, 3.68], [94, 4, 132, 2.23], [13928, 1, 51, 2.62], [13034, 3, 626, 3.7], [7084, 3, 137, 4.0], [411, 2, 115, 2.91], [11919, 1, 40, 1.48], [3893, 1, 130, 3.8], [6097, 80, 75, 3.41]]</t>
-  </si>
-  <si>
-    <t>[[589, 2, 5, 0.2], [141, 2, 5, 0.2], [2327, 2, 6, 0.2], [2778, 2, 5, 0.2], [6936, 2, 5, 0.69], [362, 2, 5, 0.31], [326, 2, 5, 0.4], [305, 2, 4, 1.01], [2775, 2, 4, 1.06], [1446, 2, 4, 1.54], [9760, 29, 4, 0.4], [8649, 2, 5, 0.64], [8853, 2, 5, 0.71], [593, 2, 4, 0.78], [11581, 29, 4, 0.81], [9507, 3, 4, 0.43], [3840, 1, 5, 0.2], [1429, 2, 4, 1.59], [523, 2, 5, 0.54], [7004, 1, 4, 1.0], [7036, 1, 4, 1.53], [5165, 1, 5, 1.2], [990, 2, 4, 0.36], [159, 3, 6, 0.2], [615, 2, 4, 0.51], [201, 3, 6, 0.41], [8089, 1, 4, 0.36], [145, 2, 4, 0.78], [248, 1, 4, 0.2], [345, 3, 6, 0.51], [6952, 1, 4, 0.71], [146, 2, 4, 0.78], [6097, 80, 5, 2.13], [7084, 3, 4, 1.45], [24664, 2, 17, 1.68], [2050, 3, 5, 0.97], [142, 2, 4, 0.58], [144, 2, 4, 0.78], [2912, 1, 4, 1.2], [7005, 1, 4, 0.76], [11770, 1, 4, 0.53], [3891, 1, 4, 0.84], [1886, 2, 4, 0.4], [997, 2, 4, 0.37], [432, 3, 4, 1.65], [998, 2, 4, 0.47], [6097, 29, 4, 1.04], [3893, 1, 4, 0.84], [6158, 2, 5, 0.36], [5165, 2, 7, 0.65], [10149, 3, 13, 0.75], [2424, 80, 4, 1.18], [12870, 1, 4, 0.47], [10517, 29, 4, 1.24], [11772, 1, 4, 0.89], [11089, 1, 4, 0.58], [20927, 1, 4, 1.36], [6098, 80, 4, 0.71], [7885, 4, 4, 0.49], [10574, 3, 5, 0.83], [1492, 1, 4, 0.43], [9372, 1, 4, 1.33], [4032, 29, 4, 1.1], [5208, 3, 5, 0.73], [3334, 5, 5, 1.14], [22316, 3, 5, 0.25], [13028, 3, 5, 0.86], [1519, 3, 10, 0.39], [3576, 25, 4, 1.54], [1490, 1, 4, 0.53], [3889, 1, 4, 0.84], [1700, 2, 4, 1.36], [12304, 1, 4, 1.75], [2912, 2, 5, 1.2], [13034, 3, 4, 0.55], [972, 3, 5, 1.27], [214, 3, 9, 0.49], [11952, 1, 4, 1.01], [5151, 2, 4, 1.03], [229, 1, 4, 1.08], [2331, 1, 4, 0.49], [11426, 25, 4, 1.01], [5812, 3, 5, 0.5], [9289, 29, 4, 0.48], [11490, 1, 4, 0.52], [3478, 2, 4, 0.76], [8677, 3, 5, 0.5], [13893, 2, 4, 0.83], [995, 2, 4, 1.24], [75, 2, 4, 0.42], [3, 2, 4, 1.17], [10, 2, 5, 0.2], [414, 1, 4, 0.87], [3575, 25, 4, 0.68], [2160, 68, 4, 1.02], [2805, 137, 4, 0.52], [410, 1, 4, 0.57], [13244, 1, 4, 0.39], [13023, 3, 5, 1.51], [11404, 2, 4, 0.42], [1309, 1, 4, 0.41], [4253, 1, 4, 0.85], [159, 1, 4, 0.53], [192, 3, 9, 1.79], [5209, 3, 4, 1.44], [9069, 1, 4, 0.67], [11813, 1, 4, 2.81], [6494, 1, 4, 1.05], [2438, 2, 5, 0.65], [24257, 1, 4, 1.72], [957, 2, 4, 0.45], [9971, 2, 4, 1.39], [9491, 21, 9, 1.43], [14037, 3, 4, 1.08], [9967, 2, 4, 1.39], [159, 16, 4, 0.54], [4033, 29, 4, 1.54], [2878, 1, 4, 0.41], [105, 3, 4, 1.03], [9964, 2, 4, 0.93], [5584, 3, 4, 0.8], [21697, 3, 4, 0.52], [22317, 3, 5, 0.83], [823, 1, 4, 0.46], [9965, 2, 4, 1.39], [8283, 2, 5, 0.95], [10609, 1, 4, 1.16], [10407, 10, 6, 0.74], [4076, 3, 4, 1.75], [13033, 3, 4, 0.55], [3495, 3, 10, 1.61], [1277, 1, 4, 1.65], [4586, 10, 13, 0.8], [11687, 2, 4, 0.67], [12647, 1, 4, 2.56], [7567, 3, 4, 1.06], [589, 2, 183, 1.98], [141, 2, 175, 3.51], [2327, 2, 170, 3.8], [2778, 2, 176, 2.93], [6936, 2, 316, 6.0], [362, 2, 159, 3.84], [326, 2, 99, 2.74], [305, 2, 106, 3.87], [2775, 2, 186, 3.28], [9760, 29, 86, 2.0], [8649, 2, 250, 4.3], [8853, 2, 297, 3.51], [593, 2, 270, 2.78], [11581, 29, 67, 3.04], [9507, 3, 72, 1.74], [3840, 1, 73, 2.05], [523, 2, 175, 3.6], [7004, 1, 19, 2.61], [7036, 1, 144, 5.02], [5165, 1, 54, 4.02], [990, 2, 13, 1.37], [159, 3, 485, 2.12], [615, 2, 130, 2.21], [201, 3, 72, 4.29], [8089, 1, 83, 3.1], [145, 2, 182, 2.73], [248, 1, 61, 2.3], [345, 3, 340, 4.29], [6952, 1, 228, 2.6], [146, 2, 182, 2.73], [7084, 3, 152, 4.51], [24664, 2, 303, 3.95], [142, 2, 185, 2.35], [144, 2, 182, 2.73], [2912, 1, 56, 3.6], [7005, 1, 57, 2.6], [11770, 1, 256, 4.01], [3891, 1, 147, 2.85], [1886, 2, 187, 2.52], [997, 2, 290, 1.95], [432, 3, 334, 4.66], [998, 2, 290, 2.13], [6097, 29, 42, 3.23], [3893, 1, 147, 2.85], [6158, 2, 279, 5.58], [5165, 2, 453, 2.47], [10149, 3, 1041, 2.72], [2424, 80, 204, 3.5], [12870, 1, 165, 2.65], [10517, 29, 82, 3.68], [11772, 1, 255, 3.71], [11089, 1, 203, 2.35], [6098, 80, 91, 2.6], [10574, 3, 607, 2.7], [1492, 1, 45, 2.06], [9372, 1, 285, 3.85], [4032, 29, 114, 3.35], [5208, 3, 634, 4.87], [3334, 5, 204, 5.85], [22316, 3, 341, 2.43], [13028, 3, 33, 4.9], [1519, 3, 582, 1.67], [3576, 25, 119, 4.19], [1490, 1, 60, 2.25]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 8, 0.97], [305, 2, 5, 0.75], [6935, 2, 10, 1.19], [141, 2, 6, 0.39], [2049, 3, 15, 0.2], [12721, 2, 6, 1.22], [151, 1, 4, 0.4], [205, 2, 4, 0.2], [130, 1, 4, 0.51], [1776, 1, 4, 1.85], [362, 2, 5, 1.07], [146, 2, 4, 0.58], [145, 2, 4, 0.39], [593, 2, 6, 0.59], [8915, 2, 6, 0.2], [2328, 2, 6, 0.2], [8648, 2, 4, 1.02], [1777, 1, 5, 0.68], [3, 2, 4, 0.76], [5151, 2, 4, 0.44], [6936, 2, 6, 0.92], [248, 1, 4, 0.2], [8675, 2, 6, 0.72], [22247, 2, 6, 0.95], [1007, 2, 9, 0.2], [2778, 2, 6, 0.2], [10, 2, 6, 0.2], [88, 10, 11, 0.45], [8677, 3, 6, 2.06], [412, 1, 4, 1.16], [11681, 2, 6, 1.12], [10149, 3, 17, 1.32], [10825, 21, 9, 1.39], [2054, 3, 7, 0.59], [75, 2, 4, 0.66], [13028, 3, 5, 0.5], [147, 1, 4, 0.68], [361, 2, 4, 0.65], [413, 1, 4, 1.7], [2055, 3, 6, 0.79], [7004, 1, 4, 0.4], [2057, 3, 5, 0.79], [8676, 2, 4, 0.97], [411, 2, 4, 0.99], [308, 1, 5, 1.76], [410, 1, 5, 0.61], [61, 3, 4, 0.46], [432, 3, 5, 0.39], [1446, 2, 4, 0.52], [1124, 2, 8, 0.2], [45, 2, 4, 1.37], [7005, 1, 4, 0.65], [5081, 2, 8, 0.2], [9827, 3, 4, 0.2], [167, 3, 6, 1.1], [5812, 3, 6, 1.87], [94, 4, 5, 2.26], [1492, 1, 4, 0.42], [3495, 3, 19, 1.31], [57, 1, 4, 0.37], [12870, 1, 4, 2.33], [168, 3, 7, 0.29], [2049, 1, 4, 0.36], [3893, 1, 4, 0.28], [11234, 2, 4, 0.94], [3889, 1, 4, 0.28], [6097, 29, 4, 0.86], [3891, 1, 4, 0.28], [8651, 2, 5, 1.45], [2336, 3, 5, 0.99], [95, 3, 17, 1.16], [335, 3, 15, 1.11], [6097, 80, 4, 2.5], [192, 3, 10, 1.98], [6098, 29, 4, 1.52], [1490, 1, 5, 0.68], [11737, 2, 4, 0.84], [214, 3, 9, 0.55], [20927, 1, 4, 0.86], [998, 2, 4, 1.29], [9069, 1, 5, 1.09], [20498, 1, 5, 0.55], [8898, 3, 6, 2.67], [1622, 1, 5, 1.13], [6098, 80, 4, 2.49], [9760, 29, 4, 0.2], [1070, 7, 8, 0.66], [14017, 3, 5, 0.2], [9829, 3, 4, 1.31], [13260, 29, 4, 1.1], [997, 2, 4, 1.3], [13034, 3, 9, 1.01], [12924, 1, 4, 0.53], [22554, 10, 11, 0.23], [11116, 1, 4, 0.57], [20498, 3, 8, 0.35], [35, 1, 4, 2.06], [1243, 2, 4, 1.03], [5513, 2, 4, 0.57], [336, 15, 4, 0.2], [5811, 3, 4, 2.25], [996, 2, 5, 1.39], [9691, 1, 5, 2.16], [5946, 1, 4, 0.28], [5813, 3, 5, 1.57], [5086, 1, 8, 2.63], [8945, 3, 5, 1.09], [39, 1, 4, 2.06], [3049, 3, 6, 1.98], [1080, 3, 5, 0.2], [952, 4, 5, 2.73], [1413, 15, 5, 0.2], [11085, 2, 4, 1.02], [8557, 3, 4, 0.2], [20486, 3, 8, 2.24], [4076, 3, 4, 2.94], [9082, 3, 18, 0.83], [2424, 80, 4, 1.1], [215, 4, 5, 3.67], [34, 1, 4, 2.06], [1703, 2, 6, 1.63], [20486, 1, 4, 0.51], [11510, 3, 6, 0.46], [38, 1, 4, 2.06], [3900, 3, 4, 0.9], [23611, 3, 4, 0.87], [14037, 3, 4, 0.52], [972, 3, 5, 0.51], [8943, 3, 4, 0.61], [13023, 3, 6, 1.48], [8274, 3, 4, 0.53], [2854, 21, 13, 0.79], [14018, 3, 4, 0.2], [8104, 1, 4, 0.59], [6497, 1, 4, 0.82], [3047, 3, 4, 0.69], [11770, 1, 4, 1.44], [18, 1, 4, 0.58], [8672, 2, 280, 5.57], [305, 2, 146, 3.96], [6935, 2, 255, 5.78], [141, 2, 153, 3.56], [2049, 3, 541, 2.4], [12721, 2, 278, 3.19], [151, 1, 42, 2.19], [205, 2, 107, 2.98], [1776, 1, 102, 4.51], [362, 2, 74, 3.67], [146, 2, 137, 3.07], [145, 2, 152, 2.11], [593, 2, 226, 3.27], [8915, 2, 201, 1.63], [2328, 2, 135, 3.66], [8648, 2, 231, 4.54], [1777, 1, 97, 4.13], [3, 2, 112, 3.42], [5151, 2, 26, 1.8], [6936, 2, 255, 5.12], [8675, 2, 266, 3.36], [22247, 2, 278, 3.55], [1007, 2, 266, 2.19], [2778, 2, 139, 3.71], [10, 2, 109, 2.5], [88, 10, 564, 3.17], [8677, 3, 290, 5.73], [412, 1, 82, 4.16], [11681, 2, 281, 4.12], [10149, 3, 855, 5.91], [10825, 21, 643, 3.2], [2054, 3, 461, 4.78], [75, 2, 153, 2.22], [13028, 3, 145, 3.58], [147, 1, 92, 3.55], [361, 2, 153, 2.7], [413, 1, 84, 4.22], [2055, 3, 461, 3.13], [7004, 1, 55, 2.9], [2057, 3, 461, 4.92], [8676, 2, 280, 4.05], [411, 2, 107, 3.4], [308, 1, 165, 3.84], [61, 3, 110, 3.14], [432, 3, 293, 3.44], [1446, 2, 159, 1.99], [1124, 2, 184, 2.39], [45, 2, 111, 6.0], [7005, 1, 78, 2.9], [5081, 2, 189, 3.46], [9827, 3, 85, 3.53], [167, 3, 225, 3.97], [1492, 1, 39, 1.76], [3495, 3, 977, 4.47], [57, 1, 89, 1.66], [168, 3, 400, 4.08], [2049, 1, 16, 1.54], [3893, 1, 122, 2.42], [11234, 2, 192, 3.02], [3889, 1, 122, 2.42], [6097, 29, 37, 2.61], [3891, 1, 122, 2.42]]</t>
-  </si>
-  <si>
-    <t>[[305, 2, 7, 1.32], [8672, 2, 10, 2.68], [3, 2, 11, 2.18], [589, 2, 14, 0.55], [130, 1, 9, 1.43], [2049, 3, 27, 1.73], [205, 2, 7, 0.96], [144, 2, 7, 1.42], [12721, 2, 10, 3.06], [75, 2, 9, 1.86], [145, 2, 7, 1.0], [1776, 1, 7, 1.85], [8915, 2, 12, 0.5], [593, 2, 15, 1.83], [146, 2, 7, 1.75], [151, 1, 7, 0.71], [2778, 2, 11, 1.62], [1777, 1, 7, 2.1], [20252, 2, 7, 0.89], [8648, 2, 7, 5.0], [206, 2, 7, 1.6], [6936, 2, 15, 2.57], [2328, 2, 11, 1.55], [5151, 2, 7, 0.9], [88, 10, 21, 1.98], [141, 2, 7, 2.77], [8675, 2, 10, 1.76], [74, 1, 7, 3.53], [83, 2, 7, 0.85], [7004, 1, 7, 3.3], [1492, 1, 7, 0.81], [2054, 3, 7, 1.03], [1446, 2, 7, 2.98], [10825, 21, 13, 2.01], [362, 2, 7, 2.54], [2057, 3, 7, 0.88], [1007, 2, 11, 0.73], [345, 3, 7, 0.97], [432, 3, 7, 1.15], [7005, 1, 7, 2.68], [22247, 2, 13, 4.81], [11681, 2, 13, 3.81], [201, 3, 11, 0.87], [57, 1, 7, 1.34], [410, 1, 7, 2.85], [3889, 1, 7, 0.8], [308, 1, 17, 3.41], [10149, 3, 21, 2.8], [12870, 1, 7, 5.0], [1124, 2, 14, 0.68], [7036, 1, 7, 2.49], [35, 1, 7, 3.65], [167, 3, 9, 2.77], [9827, 3, 7, 3.12], [5081, 2, 14, 1.08], [8677, 3, 9, 1.84], [94, 4, 7, 3.35], [411, 2, 7, 1.37], [1504, 2, 7, 1.97], [3891, 1, 7, 2.38], [79, 1, 7, 1.19], [168, 3, 11, 3.71], [8676, 2, 7, 1.7], [3893, 1, 7, 2.63], [5812, 3, 10, 1.92], [9760, 29, 7, 1.41], [23, 1, 9, 2.81], [1490, 1, 7, 1.17], [412, 1, 7, 3.16], [3980, 4, 7, 2.74], [20927, 1, 7, 3.21], [45, 2, 7, 2.97], [361, 2, 9, 3.21], [1767, 25, 9, 1.17], [5208, 3, 16, 3.05], [1622, 1, 7, 3.2], [95, 3, 27, 1.28], [9069, 1, 7, 1.96], [8651, 2, 9, 3.54], [335, 3, 20, 0.93], [25, 1, 9, 2.73], [214, 3, 18, 1.26], [10574, 3, 10, 1.02], [413, 1, 7, 2.8], [2049, 1, 7, 1.19], [34, 1, 7, 3.81], [998, 2, 7, 2.83], [856, 1, 7, 1.01], [3495, 3, 16, 2.26], [8898, 3, 12, 3.12], [9691, 1, 7, 3.0], [1766, 25, 9, 4.01], [1070, 7, 15, 0.84], [11116, 1, 7, 3.57], [20498, 1, 7, 2.72], [38, 1, 7, 4.04], [997, 2, 7, 1.84], [5946, 1, 7, 2.23], [14017, 3, 9, 1.5], [1413, 15, 7, 0.83], [974, 3, 9, 2.64], [9829, 3, 7, 2.73], [152, 21, 7, 1.46], [1091, 1, 7, 1.75], [20498, 3, 12, 1.89], [39, 1, 7, 4.04], [82, 2, 7, 2.13], [14037, 3, 11, 1.09], [9372, 1, 7, 2.14], [5209, 3, 9, 3.05], [1080, 3, 9, 1.34], [5086, 1, 7, 4.63], [996, 2, 7, 4.34], [1767, 2, 7, 1.71], [3048, 3, 7, 3.93], [9828, 3, 7, 3.41], [972, 3, 8, 2.01], [13260, 29, 7, 2.71], [24, 1, 7, 2.54], [4203, 1, 7, 1.31], [5513, 2, 7, 2.11], [10780, 10, 7, 3.58], [5813, 3, 9, 3.29], [3981, 3, 17, 2.74], [202, 2, 7, 3.63], [8945, 3, 8, 2.81], [952, 4, 7, 4.41], [36, 1, 7, 4.04], [336, 15, 7, 0.92], [2878, 1, 7, 2.26], [13034, 3, 8, 2.88], [3900, 3, 7, 0.94], [23611, 3, 8, 4.42], [995, 2, 7, 2.41], [6497, 1, 7, 1.29], [14018, 3, 7, 0.89], [24257, 1, 7, 3.7], [9082, 3, 29, 2.75], [170, 3, 7, 3.64], [3980, 4, 570, 3.8], [20927, 1, 27, 4.05], [45, 2, 123, 5.03], [1767, 25, 175, 3.42], [5208, 3, 590, 4.62], [1622, 1, 111, 4.52], [95, 3, 1250, 3.81], [9069, 1, 124, 3.03], [8651, 2, 234, 4.6], [335, 3, 1472, 2.98], [214, 3, 732, 2.32], [10574, 3, 612, 2.09], [413, 1, 96, 4.36], [34, 1, 123, 4.88], [998, 2, 270, 3.89], [856, 1, 38, 2.07], [3495, 3, 1086, 4.69], [8898, 3, 301, 5.58], [1766, 25, 125, 4.94], [1070, 7, 646, 3.65], [11116, 1, 25, 4.33], [20498, 1, 110, 4.61], [38, 1, 123, 5.11], [997, 2, 285, 2.9], [5946, 1, 138, 4.28], [14017, 3, 203, 3.38], [1413, 15, 118, 1.9], [974, 3, 167, 4.45], [9829, 3, 72, 3.8], [1091, 1, 36, 3.0], [20498, 3, 659, 4.2], [39, 1, 123, 5.11], [9372, 1, 280, 3.21], [5209, 3, 590, 4.62], [1080, 3, 149, 3.89], [5086, 1, 154, 5.71], [996, 2, 82, 5.36], [1767, 2, 38, 3.42], [3048, 3, 304, 5.98], [9828, 3, 29, 4.22], [972, 3, 672, 3.65], [13260, 29, 81, 4.03], [24, 1, 125, 3.89], [4203, 1, 55, 3.36], [10780, 10, 391, 5.89], [5813, 3, 705, 4.36], [3981, 3, 1815, 4.05], [202, 2, 37, 4.53], [952, 4, 85, 5.73], [36, 1, 117, 5.11], [2878, 1, 86, 3.33], [13034, 3, 663, 4.48], [3900, 3, 49, 2.26], [23611, 3, 367, 5.48], [995, 2, 285, 3.48], [6497, 1, 44, 2.36], [14018, 3, 237, 1.96], [24257, 1, 70, 4.54], [9082, 3, 2907, 3.83], [170, 3, 410, 4.71]]</t>
-  </si>
-  <si>
-    <t>[[305, 2, 9, 1.32], [6935, 2, 11, 4.09], [2778, 2, 17, 1.18], [144, 2, 7, 1.04], [8915, 2, 10, 1.06], [6936, 2, 7, 3.27], [2775, 2, 7, 2.04], [205, 2, 9, 2.28], [8650, 2, 7, 3.41], [593, 2, 17, 2.02], [145, 2, 9, 1.42], [146, 2, 7, 1.4], [326, 2, 7, 1.02], [7036, 1, 7, 3.79], [5493, 2, 7, 0.73], [88, 10, 29, 3.07], [141, 2, 7, 1.29], [7004, 1, 7, 2.58], [1446, 2, 7, 1.5], [1124, 2, 9, 1.59], [9760, 29, 7, 1.89], [206, 2, 9, 1.58], [8853, 2, 7, 2.55], [8672, 2, 7, 3.25], [362, 2, 7, 3.0], [142, 2, 7, 2.28], [11685, 2, 11, 1.76], [2912, 1, 7, 3.73], [7886, 4, 7, 0.8], [8649, 2, 7, 3.04], [5165, 1, 7, 3.1], [12870, 1, 9, 4.32], [1622, 1, 7, 1.38], [2055, 3, 7, 1.06], [417, 2, 7, 2.02], [7573, 1, 14, 5.0], [7084, 3, 7, 3.55], [21793, 1, 7, 1.7], [7885, 4, 9, 1.47], [2054, 3, 7, 3.41], [523, 2, 7, 1.19], [10, 2, 9, 1.21], [9372, 1, 7, 2.39], [3891, 1, 7, 1.21], [75, 2, 7, 3.56], [10149, 3, 21, 2.81], [5208, 3, 11, 1.03], [9491, 21, 19, 1.74], [20927, 1, 9, 2.86], [35, 1, 9, 3.54], [997, 2, 7, 2.43], [12721, 2, 10, 3.06], [5165, 2, 8, 2.04], [3, 2, 9, 2.97], [33, 1, 7, 1.87], [998, 2, 7, 1.83], [94, 4, 7, 0.96], [7887, 4, 7, 1.12], [22247, 2, 7, 2.77], [996, 2, 7, 1.83], [972, 3, 10, 2.61], [34, 1, 7, 3.25], [6158, 2, 14, 1.56], [2805, 137, 7, 3.15], [2912, 2, 12, 3.73], [2424, 80, 7, 1.6], [38, 1, 7, 1.87], [8104, 1, 7, 3.06], [2336, 3, 8, 1.39], [8898, 3, 7, 1.44], [9690, 1, 7, 0.89], [12212, 29, 9, 1.15], [24257, 1, 7, 1.25], [39, 1, 7, 1.87], [11952, 1, 7, 1.58], [7567, 3, 7, 3.04], [2424, 29, 7, 2.71], [1414, 15, 7, 0.85], [192, 3, 15, 2.09], [8676, 2, 7, 3.25], [11770, 1, 7, 3.62], [3495, 3, 17, 3.02], [202, 2, 7, 2.58], [13928, 1, 7, 2.56], [3048, 3, 7, 2.02], [4032, 29, 7, 5.0], [23961, 3, 7, 3.68], [11490, 1, 7, 0.85], [161, 3, 11, 3.8], [5946, 1, 7, 0.67], [11772, 1, 7, 2.97], [1703, 2, 7, 0.81], [10407, 10, 15, 2.75], [74, 1, 7, 4.99], [10410, 10, 11, 2.51], [13023, 3, 8, 2.91], [1274, 1, 7, 1.55], [1519, 3, 24, 0.67], [24258, 1, 9, 2.7], [1523, 1, 7, 1.08], [21269, 3, 7, 5.0], [2331, 1, 7, 2.06], [11236, 2, 7, 1.19], [4253, 1, 7, 0.75], [5164, 1, 7, 1.99], [4076, 3, 7, 3.06], [3430, 15, 7, 1.29], [12764, 2, 8, 0.61], [6097, 80, 7, 1.37], [972, 1, 7, 2.2], [214, 3, 26, 1.25], [6097, 29, 7, 1.37], [10780, 10, 7, 2.56], [1080, 3, 7, 2.75], [8674, 2, 7, 1.69], [3047, 3, 7, 3.41], [13893, 2, 7, 2.25], [9081, 3, 12, 0.94], [11404, 2, 7, 0.81], [10408, 10, 8, 1.05], [8677, 3, 7, 2.5], [13034, 3, 7, 3.01], [3576, 29, 7, 2.56], [1243, 2, 7, 2.09], [12662, 1, 7, 1.02], [13264, 29, 7, 0.9], [2436, 4, 7, 1.58], [20486, 3, 7, 3.48], [6497, 1, 7, 1.87], [7704, 2, 7, 0.87], [13928, 2, 7, 2.56], [3334, 5, 7, 4.89], [11813, 1, 7, 1.69], [45, 2, 7, 1.84], [1277, 1, 7, 3.58], [9690, 1, 86, 2.09], [12212, 29, 119, 3.53], [24257, 1, 153, 2.7], [39, 1, 127, 3.07], [11952, 1, 230, 2.78], [7567, 3, 76, 4.57], [2424, 29, 38, 4.16], [1414, 15, 115, 2.05], [192, 3, 1309, 3.56], [8676, 2, 328, 4.45], [11770, 1, 250, 4.82], [3495, 3, 1058, 4.49], [202, 2, 84, 3.78], [13928, 1, 54, 3.76], [3048, 3, 297, 3.23], [4032, 29, 108, 6.0], [23961, 3, 340, 4.88], [11490, 1, 126, 2.05], [161, 3, 861, 4.99], [5946, 1, 144, 1.87], [11772, 1, 246, 4.17], [1703, 2, 191, 2.01], [10407, 10, 1373, 3.96], [74, 1, 215, 6.0], [10410, 10, 1373, 3.72], [13023, 3, 683, 4.12], [1274, 1, 90, 3.0], [1519, 3, 1076, 1.94], [1523, 1, 55, 2.28], [21269, 3, 340, 6.0], [2331, 1, 135, 3.26], [11236, 2, 255, 2.39], [4253, 1, 180, 2.2], [5164, 1, 54, 3.19], [4076, 3, 230, 4.26], [3430, 15, 80, 2.49], [12764, 2, 861, 1.8], [6097, 80, 81, 2.57], [972, 1, 115, 3.4], [6097, 29, 41, 2.57], [10780, 10, 436, 3.77], [1080, 3, 147, 3.95], [8674, 2, 328, 2.89], [3047, 3, 296, 5.09], [13893, 2, 316, 3.45], [9081, 3, 562, 2.15], [11404, 2, 121, 2.01], [10408, 10, 912, 2.26], [8677, 3, 340, 3.7], [13034, 3, 673, 4.22], [3576, 29, 35, 3.75], [1243, 2, 112, 3.29], [12662, 1, 71, 2.22], [13264, 29, 85, 2.1], [2436, 4, 134, 2.78], [20486, 3, 615, 4.68], [6497, 1, 43, 3.07], [7704, 2, 205, 2.07], [13928, 2, 27, 3.76], [3334, 5, 200, 6.0], [11813, 1, 365, 2.89], [45, 2, 125, 3.04], [1277, 1, 221, 4.78]]</t>
-  </si>
-  <si>
-    <t>[[326, 2, 7, 1.37], [11685, 2, 7, 3.6], [144, 2, 9, 2.0], [11681, 2, 9, 3.34], [589, 2, 8, 0.61], [2327, 2, 7, 0.94], [205, 2, 7, 0.99], [593, 2, 14, 1.01], [141, 2, 7, 1.85], [305, 2, 7, 1.23], [8915, 2, 8, 1.37], [8650, 2, 7, 2.25], [2328, 2, 7, 0.81], [151, 1, 7, 0.69], [6936, 2, 14, 4.75], [2778, 2, 11, 1.43], [2049, 3, 14, 1.17], [146, 2, 11, 1.81], [206, 2, 7, 1.82], [88, 10, 18, 2.29], [7004, 1, 7, 3.12], [9507, 3, 7, 0.69], [615, 2, 7, 0.94], [7036, 1, 7, 3.81], [145, 2, 9, 1.5], [1446, 2, 7, 1.73], [417, 2, 7, 0.93], [8853, 2, 7, 2.37], [362, 2, 7, 3.0], [248, 1, 7, 0.71], [523, 2, 9, 1.56], [2055, 3, 7, 4.17], [10993, 2, 9, 0.98], [142, 2, 7, 0.92], [75, 2, 9, 1.89], [616, 2, 7, 0.96], [3840, 1, 7, 0.75], [11737, 2, 7, 1.27], [2050, 3, 7, 4.19], [12870, 1, 7, 3.69], [12350, 1, 7, 3.09], [2054, 3, 7, 4.19], [2057, 3, 7, 3.77], [7084, 3, 7, 1.67], [13028, 3, 7, 1.25], [20927, 1, 7, 2.62], [7005, 1, 7, 1.54], [3, 2, 7, 1.0], [3982, 3, 19, 1.23], [10, 2, 9, 0.66], [997, 2, 7, 1.71], [94, 4, 7, 1.75], [21793, 1, 7, 3.79], [61, 3, 7, 4.31], [7885, 4, 9, 1.53], [3891, 1, 7, 0.87], [996, 2, 9, 3.03], [6158, 2, 7, 1.77], [998, 2, 7, 1.1], [8672, 2, 7, 2.68], [5165, 1, 7, 2.12], [9491, 21, 18, 3.13], [11739, 2, 7, 2.06], [2912, 1, 7, 3.72], [972, 3, 8, 1.64], [5165, 2, 8, 2.12], [7886, 4, 7, 0.9], [346, 3, 7, 0.88], [3980, 4, 7, 2.63], [98, 11, 16, 1.21], [10388, 2, 7, 2.43], [411, 2, 7, 1.75], [1492, 1, 7, 0.9], [346, 1, 7, 0.83], [7573, 1, 7, 4.14], [8677, 3, 7, 3.84], [83, 2, 7, 1.41], [5208, 3, 10, 2.74], [7567, 3, 7, 2.7], [410, 1, 7, 2.22], [22316, 3, 7, 0.98], [995, 2, 7, 1.79], [3981, 3, 21, 2.03], [9081, 3, 12, 3.65], [13928, 1, 7, 1.58], [22247, 2, 7, 2.36], [10386, 2, 7, 1.46], [9372, 1, 7, 2.16], [336, 15, 7, 1.06], [11770, 1, 7, 3.3], [308, 1, 7, 3.47], [10780, 10, 7, 3.49], [1622, 1, 7, 1.6], [11953, 1, 7, 1.85], [161, 3, 8, 2.28], [2912, 2, 8, 3.72], [23611, 3, 9, 3.81], [9082, 3, 33, 2.42], [5946, 1, 7, 1.64], [345, 3, 7, 0.96], [22317, 3, 7, 0.98], [192, 3, 20, 1.83], [11116, 1, 7, 3.1], [229, 1, 7, 3.09], [24257, 1, 7, 3.7], [37, 1, 7, 2.48], [82, 2, 7, 0.98], [972, 1, 7, 3.25], [11767, 1, 7, 1.27], [12271, 2, 7, 2.18], [7704, 2, 7, 3.27], [34, 1, 7, 2.19], [14037, 3, 7, 4.06], [8104, 1, 7, 3.07], [10410, 10, 10, 2.55], [10407, 10, 10, 2.59], [11085, 2, 9, 3.15], [11404, 2, 7, 0.81], [3048, 3, 7, 2.19], [10387, 2, 7, 4.13], [20498, 3, 8, 0.7], [74, 1, 7, 2.68], [38, 1, 7, 2.73], [1413, 15, 7, 0.77], [335, 3, 15, 0.89], [12721, 2, 7, 1.73], [2331, 1, 7, 2.15], [12338, 29, 7, 0.75], [215, 4, 7, 3.93], [4001, 3, 14, 2.07], [1523, 1, 7, 1.16], [4253, 1, 7, 1.69], [11510, 3, 8, 1.74], [8673, 2, 7, 4.37], [45, 2, 7, 2.76], [201, 3, 7, 0.96], [98, 11, 896, 2.34], [10388, 2, 234, 3.55], [411, 2, 117, 2.87], [1492, 1, 40, 2.03], [346, 1, 150, 2.21], [7573, 1, 376, 5.27], [8677, 3, 312, 4.97], [7567, 3, 75, 3.82], [410, 1, 25, 2.86], [22316, 3, 342, 2.11], [995, 2, 261, 2.91], [3981, 3, 1743, 3.18], [9081, 3, 448, 5.02], [13928, 1, 51, 2.71], [22247, 2, 276, 3.49], [10386, 2, 234, 2.59], [9372, 1, 258, 3.29], [336, 15, 119, 2.19], [11770, 1, 231, 4.43], [308, 1, 171, 4.6], [10780, 10, 396, 4.61], [1622, 1, 116, 2.73], [11953, 1, 215, 2.98], [161, 3, 805, 3.39], [2912, 2, 388, 4.84], [23611, 3, 349, 4.93], [9082, 3, 2517, 3.83], [5946, 1, 135, 2.77], [345, 3, 320, 2.09], [22317, 3, 342, 2.11], [192, 3, 1240, 3.19], [229, 1, 89, 4.22], [37, 1, 113, 3.86], [82, 2, 22, 1.82], [11767, 1, 174, 2.39], [12271, 2, 68, 3.3], [7704, 2, 179, 4.4], [34, 1, 113, 3.49], [14037, 3, 353, 5.18], [8104, 1, 210, 4.19], [10410, 10, 1285, 3.68], [10407, 10, 1285, 3.72], [11085, 2, 578, 4.27], [11404, 2, 114, 1.94], [3048, 3, 291, 3.31], [10387, 2, 234, 5.26], [20498, 3, 633, 1.83], [74, 1, 212, 3.81], [38, 1, 119, 3.86], [1413, 15, 107, 1.9], [335, 3, 1414, 2.0], [12721, 2, 307, 2.85], [2331, 1, 126, 3.28], [12338, 29, 57, 1.88], [215, 4, 41, 5.06], [4001, 3, 854, 3.19], [1523, 1, 51, 2.29], [4253, 1, 187, 2.82], [11510, 3, 630, 2.87], [8673, 2, 272, 5.5], [45, 2, 114, 3.88], [201, 3, 320, 2.09]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 34, 2.8], [362, 2, 11, 1.38], [2049, 3, 24, 0.5], [589, 2, 18, 0.5], [3, 2, 9, 1.97], [75, 2, 14, 1.51], [141, 2, 7, 2.0], [8672, 2, 15, 2.16], [1776, 1, 7, 1.12], [130, 1, 7, 1.02], [205, 2, 9, 1.95], [8915, 2, 10, 0.86], [151, 1, 7, 1.08], [11681, 2, 15, 5.0], [2778, 2, 10, 0.56], [305, 2, 7, 0.94], [1777, 1, 7, 2.22], [6936, 2, 10, 2.79], [8648, 2, 9, 3.71], [593, 2, 14, 2.33], [990, 2, 7, 1.0], [88, 10, 21, 1.94], [83, 2, 7, 0.96], [1007, 2, 15, 1.03], [345, 3, 9, 1.1], [5151, 2, 7, 1.71], [412, 1, 7, 3.14], [361, 2, 7, 2.88], [201, 3, 10, 1.01], [22247, 2, 9, 2.42], [21793, 1, 7, 3.62], [10149, 3, 25, 3.26], [45, 2, 7, 2.65], [12721, 2, 10, 2.24], [7004, 1, 7, 1.34], [10825, 21, 13, 2.1], [2054, 3, 9, 3.22], [167, 3, 9, 2.5], [413, 1, 7, 3.27], [2057, 3, 7, 3.22], [308, 1, 7, 2.71], [5005, 1, 7, 0.92], [74, 1, 7, 3.75], [6158, 2, 8, 2.62], [168, 3, 7, 1.9], [1446, 2, 7, 1.04], [346, 1, 7, 0.92], [432, 3, 7, 1.61], [13028, 3, 7, 1.61], [10, 2, 9, 2.16], [7036, 1, 9, 4.75], [3495, 3, 19, 1.65], [12870, 1, 14, 5.0], [214, 3, 15, 0.77], [335, 3, 18, 2.4], [5081, 2, 9, 0.93], [79, 1, 7, 0.73], [5208, 3, 13, 3.58], [9827, 3, 7, 1.98], [410, 1, 7, 1.54], [3889, 1, 7, 2.63], [1492, 1, 7, 0.81], [95, 3, 21, 3.55], [5812, 3, 10, 2.49], [94, 4, 7, 3.35], [3893, 1, 7, 1.67], [13260, 29, 7, 2.12], [23, 1, 7, 2.76], [1504, 2, 7, 2.78], [7005, 1, 7, 1.44], [1490, 1, 7, 2.48], [411, 2, 7, 1.66], [10993, 2, 7, 0.81], [3891, 1, 7, 2.52], [25, 1, 7, 2.67], [998, 2, 7, 2.66], [1124, 2, 12, 1.74], [3980, 4, 7, 2.76], [21269, 3, 7, 5.0], [8651, 2, 7, 0.67], [10574, 3, 9, 2.31], [9691, 1, 7, 4.14], [5086, 1, 9, 2.24], [856, 1, 7, 1.17], [2878, 1, 9, 3.32], [997, 2, 14, 3.52], [5660, 2, 7, 4.03], [8676, 2, 7, 1.94], [11914, 1, 12, 1.02], [20927, 1, 7, 1.75], [192, 3, 22, 4.99], [9829, 3, 7, 3.0], [1703, 2, 7, 3.63], [5209, 3, 9, 2.86], [8674, 2, 7, 3.61], [1622, 1, 10, 1.61], [9081, 3, 12, 0.73], [952, 4, 7, 5.0], [20498, 1, 7, 1.79], [5513, 2, 7, 1.88], [1070, 7, 13, 2.49], [996, 2, 11, 4.11], [8898, 3, 10, 5.0], [14037, 3, 9, 0.93], [346, 3, 8, 0.8], [1091, 1, 7, 1.35], [12661, 1, 7, 4.66], [20498, 3, 10, 3.76], [1519, 3, 26, 0.67], [6097, 29, 7, 2.33], [27, 1, 7, 1.53], [8274, 3, 9, 1.92], [24, 1, 7, 2.85], [13034, 3, 12, 3.48], [22317, 3, 8, 1.15], [4203, 1, 11, 1.27], [10529, 29, 7, 2.95], [11490, 1, 7, 0.98], [1413, 15, 7, 1.69], [336, 15, 7, 0.67], [6097, 80, 7, 1.27], [24664, 2, 13, 3.27], [11767, 1, 7, 1.15], [23611, 3, 7, 3.74], [34, 1, 7, 3.96], [9082, 3, 29, 3.0], [2104, 3, 12, 2.51], [6098, 80, 7, 3.18], [66, 1, 7, 0.87], [11769, 1, 7, 0.9], [5811, 3, 7, 2.13], [10780, 10, 7, 4.87], [6098, 29, 7, 2.0], [38, 1, 7, 3.97], [39, 1, 7, 3.97], [66, 16, 7, 0.9], [2109, 3, 18, 0.75], [1490, 1, 47, 3.43], [411, 2, 113, 2.6], [10993, 2, 56, 1.76], [3891, 1, 129, 3.47], [998, 2, 236, 5.57], [1124, 2, 174, 2.93], [3980, 4, 450, 3.97], [21269, 3, 290, 6.0], [8651, 2, 229, 1.61], [10574, 3, 505, 3.63], [9691, 1, 73, 5.2], [5086, 1, 182, 4.69], [856, 1, 34, 2.37], [997, 2, 236, 4.59], [5660, 2, 171, 4.98], [8676, 2, 280, 3.13], [11914, 1, 84, 3.85], [20927, 1, 28, 2.9], [192, 3, 1224, 5.98], [9829, 3, 64, 4.2], [1703, 2, 162, 5.19], [5209, 3, 535, 3.8], [8674, 2, 280, 4.56], [1622, 1, 92, 2.56], [9081, 3, 506, 1.67], [952, 4, 58, 6.0], [20498, 1, 92, 2.99], [1070, 7, 609, 3.44], [996, 2, 236, 5.79], [8898, 3, 290, 6.0], [14037, 3, 120, 1.91], [346, 3, 645, 1.75], [1091, 1, 47, 3.19], [12661, 1, 41, 5.76], [20498, 3, 570, 4.94], [1519, 3, 1615, 2.5], [6097, 29, 33, 3.51], [27, 1, 117, 2.47], [24, 1, 110, 4.06], [13034, 3, 578, 5.17], [22317, 3, 312, 3.06], [4203, 1, 44, 3.18], [10529, 29, 40, 4.5], [11490, 1, 113, 1.93], [1413, 15, 96, 3.22], [6097, 80, 74, 2.22], [24664, 2, 296, 4.21], [11767, 1, 154, 2.1], [23611, 3, 295, 4.95], [34, 1, 95, 4.88], [9082, 3, 2551, 3.92], [6098, 80, 76, 4.13], [66, 1, 40, 1.82], [11769, 1, 154, 2.1], [5811, 3, 615, 3.08], [10780, 10, 349, 5.82], [6098, 29, 38, 3.06], [38, 1, 114, 4.92], [39, 1, 95, 4.88], [66, 16, 72, 2.1], [2109, 3, 434, 2.02]]</t>
-  </si>
-  <si>
-    <t>[[589, 2, 12, 0.87], [88, 10, 21, 1.36], [8915, 2, 15, 1.06], [6935, 2, 14, 4.34], [2778, 2, 9, 0.55], [305, 2, 7, 1.07], [2328, 2, 14, 1.46], [615, 2, 7, 1.07], [326, 2, 17, 2.27], [6936, 2, 7, 3.27], [8648, 2, 7, 3.27], [8650, 2, 14, 5.0], [1446, 2, 7, 1.57], [434, 2, 7, 1.0], [205, 2, 7, 2.16], [10, 2, 9, 2.3], [144, 2, 9, 2.75], [151, 1, 7, 0.69], [94, 4, 7, 3.35], [7036, 1, 7, 2.33], [7886, 4, 7, 1.41], [141, 2, 11, 2.03], [1504, 2, 7, 2.78], [146, 2, 10, 2.31], [362, 2, 7, 3.0], [3891, 1, 7, 1.49], [21793, 1, 7, 2.4], [206, 2, 7, 1.85], [8649, 2, 7, 3.04], [11404, 2, 7, 0.81], [10993, 2, 7, 1.12], [5208, 3, 11, 2.22], [2054, 3, 9, 3.47], [3980, 4, 8, 1.72], [7005, 1, 7, 1.82], [11234, 2, 7, 2.7], [12870, 1, 7, 1.42], [145, 2, 7, 3.0], [5165, 1, 7, 2.04], [2912, 1, 7, 3.73], [8672, 2, 7, 3.25], [20927, 1, 7, 2.86], [10149, 3, 19, 2.29], [7887, 4, 7, 1.98], [998, 2, 7, 4.25], [9760, 29, 7, 1.89], [2436, 4, 7, 1.11], [417, 2, 7, 2.28], [997, 2, 7, 2.43], [142, 2, 7, 2.37], [2424, 80, 7, 3.03], [3, 2, 9, 1.95], [6158, 2, 7, 2.44], [9491, 21, 19, 1.74], [972, 3, 14, 2.61], [523, 2, 7, 1.19], [3495, 3, 18, 2.92], [11770, 1, 7, 3.62], [214, 3, 15, 0.69], [7573, 1, 16, 5.0], [11953, 1, 7, 1.93], [74, 1, 7, 3.83], [24257, 1, 7, 1.44], [5165, 2, 8, 2.04], [996, 2, 7, 1.83], [12721, 2, 7, 2.64], [2423, 80, 7, 1.39], [11772, 1, 7, 2.97], [8677, 3, 7, 2.5], [2912, 2, 12, 3.73], [6497, 1, 7, 1.87], [3981, 3, 20, 1.03], [1622, 1, 7, 3.19], [22317, 3, 7, 0.81], [8898, 3, 7, 1.44], [2438, 2, 8, 0.85], [2424, 29, 7, 1.56], [5434, 1, 7, 1.19], [823, 1, 7, 2.0], [4253, 1, 7, 0.75], [9372, 1, 7, 2.39], [3975, 4, 7, 2.36], [33, 1, 7, 1.87], [7567, 3, 7, 0.79], [6496, 1, 7, 2.51], [24258, 1, 9, 2.26], [2805, 137, 7, 3.15], [9081, 3, 12, 0.94], [9082, 3, 37, 3.08], [37, 1, 7, 1.5], [5946, 1, 7, 0.67], [11812, 1, 7, 0.92], [335, 3, 15, 0.89], [1519, 3, 20, 0.83], [8676, 2, 7, 3.25], [12764, 2, 8, 0.61], [10407, 10, 15, 2.75], [220, 4, 7, 3.47], [972, 1, 7, 2.2], [6097, 80, 7, 1.37], [23611, 3, 8, 3.74], [1243, 2, 7, 2.09], [10388, 2, 7, 2.07], [1703, 2, 7, 0.81], [161, 3, 11, 3.8], [1414, 15, 7, 0.85], [1274, 1, 7, 1.26], [95, 3, 18, 0.85], [38, 1, 7, 1.87], [11490, 1, 7, 0.85], [35, 1, 7, 1.87], [11236, 2, 7, 1.19], [22247, 2, 7, 2.43], [12212, 29, 7, 1.02], [4232, 80, 7, 2.51], [2104, 3, 15, 0.92], [1895, 3, 7, 4.81], [10631, 2, 7, 4.73], [8659, 1, 7, 1.64], [11813, 1, 7, 1.69], [13893, 2, 7, 2.25], [11235, 2, 7, 2.61], [10093, 3, 14, 1.76], [12501, 1, 7, 2.39], [8635, 3, 7, 2.45], [788, 2, 7, 1.02], [5164, 1, 7, 1.99], [8274, 3, 7, 2.04], [1309, 1, 7, 0.87], [4940, 1, 7, 0.85], [8104, 1, 7, 3.06], [10780, 10, 7, 2.56], [19931, 1, 7, 2.43], [13034, 3, 7, 3.01], [10386, 2, 7, 4.24], [11942, 29, 7, 2.27], [5151, 2, 7, 1.98], [22317, 3, 329, 2.26], [8898, 3, 339, 2.63], [2438, 2, 739, 2.04], [2424, 29, 40, 2.76], [5434, 1, 57, 2.39], [823, 1, 46, 3.2], [4253, 1, 199, 1.95], [9372, 1, 272, 3.59], [3975, 4, 557, 3.56], [33, 1, 127, 3.07], [7567, 3, 81, 1.99], [6496, 1, 47, 3.71], [24258, 1, 32, 2.93], [2805, 137, 200, 4.35], [9081, 3, 562, 2.15], [9082, 3, 2833, 4.25], [37, 1, 127, 2.7], [5946, 1, 144, 1.87], [11812, 1, 277, 2.12], [335, 3, 1511, 2.09], [1519, 3, 567, 1.72], [8676, 2, 328, 4.45], [12764, 2, 861, 1.8], [10407, 10, 1373, 3.96], [220, 4, 52, 4.67], [972, 1, 115, 3.4], [6097, 80, 81, 2.57], [23611, 3, 364, 4.94], [1243, 2, 112, 3.29], [10388, 2, 250, 3.27], [1703, 2, 191, 2.01], [161, 3, 861, 4.99], [1414, 15, 115, 2.05], [1274, 1, 95, 2.46], [95, 3, 1307, 2.04], [38, 1, 127, 3.07], [11490, 1, 126, 2.05], [35, 1, 127, 3.07], [11236, 2, 255, 2.39], [22247, 2, 326, 3.63], [12212, 29, 139, 2.22], [4232, 80, 179, 3.71], [2104, 3, 393, 2.13], [1895, 3, 340, 6.0], [10631, 2, 238, 5.93], [8659, 1, 139, 2.84], [11813, 1, 365, 2.89], [13893, 2, 316, 3.45], [11235, 2, 227, 3.81], [10093, 3, 951, 2.97], [12501, 1, 343, 3.6], [788, 2, 43, 2.08], [5164, 1, 54, 3.19], [1309, 1, 60, 2.07], [4940, 1, 140, 2.05], [8104, 1, 226, 4.27], [10780, 10, 436, 3.77], [19931, 1, 472, 3.62], [13034, 3, 673, 4.22], [10386, 2, 250, 5.44], [11942, 29, 112, 3.47], [5151, 2, 28, 3.18]]</t>
-  </si>
-  <si>
-    <t>[[305, 2, 7, 1.23], [2778, 2, 11, 1.07], [6936, 2, 11, 3.69], [205, 2, 9, 0.98], [88, 10, 14, 0.72], [144, 2, 11, 2.59], [1504, 2, 7, 1.9], [589, 2, 8, 0.61], [326, 2, 14, 1.69], [8915, 2, 8, 1.95], [8650, 2, 9, 2.73], [7036, 1, 7, 3.33], [593, 2, 10, 1.23], [2775, 2, 9, 2.0], [141, 2, 9, 1.83], [206, 2, 7, 1.75], [3980, 4, 7, 2.37], [7004, 1, 7, 2.52], [3891, 1, 7, 1.24], [2050, 3, 7, 4.09], [8853, 2, 7, 4.22], [7885, 4, 9, 1.27], [7886, 4, 9, 1.0], [2328, 2, 7, 0.81], [146, 2, 9, 2.86], [2055, 3, 9, 4.2], [2054, 3, 7, 3.68], [10, 2, 9, 0.66], [5491, 2, 7, 0.69], [362, 2, 9, 3.06], [8672, 2, 7, 2.43], [12870, 1, 9, 3.96], [8649, 2, 7, 3.04], [10993, 2, 9, 1.56], [3975, 4, 7, 2.76], [2057, 3, 7, 5.0], [21793, 1, 7, 3.79], [12349, 1, 7, 3.09], [5165, 1, 7, 2.12], [1446, 2, 7, 2.21], [13028, 3, 7, 1.25], [3982, 3, 21, 2.77], [5208, 3, 10, 2.74], [75, 2, 7, 1.14], [2991, 3, 7, 4.18], [523, 2, 7, 2.23], [145, 2, 7, 2.98], [7005, 1, 7, 1.87], [94, 4, 7, 3.35], [3495, 3, 21, 3.84], [11404, 2, 7, 0.81], [20927, 1, 7, 3.14], [997, 2, 7, 3.28], [6158, 2, 9, 3.62], [192, 3, 33, 2.81], [2912, 1, 7, 3.72], [82, 2, 7, 1.52], [22316, 3, 9, 1.23], [417, 2, 7, 0.92], [5165, 2, 8, 2.12], [7567, 3, 7, 2.7], [998, 2, 7, 3.28], [11769, 1, 9, 2.16], [389, 4, 7, 2.12], [1492, 1, 7, 1.17], [11953, 1, 7, 1.85], [4176, 4, 9, 3.74], [346, 3, 7, 2.21], [996, 2, 9, 3.58], [11767, 1, 7, 1.27], [5946, 1, 7, 1.64], [6496, 1, 7, 0.94], [8677, 3, 7, 3.84], [37, 1, 7, 2.89], [12721, 2, 7, 1.73], [972, 3, 8, 3.25], [4253, 1, 7, 1.69], [74, 1, 7, 2.68], [11490, 1, 7, 1.52], [22317, 3, 9, 1.67], [411, 2, 7, 1.75], [12212, 29, 9, 0.94], [2104, 3, 10, 0.94], [1413, 15, 7, 1.12], [345, 3, 7, 0.96], [3979, 3, 8, 2.31], [336, 15, 7, 2.19], [11085, 2, 9, 3.42], [2912, 2, 8, 3.72], [8121, 3, 7, 1.17], [1274, 1, 7, 1.94], [201, 3, 9, 2.61], [1277, 1, 7, 3.58], [14037, 3, 7, 4.04], [3, 2, 7, 1.48], [13023, 3, 7, 2.91], [21269, 3, 7, 3.75], [823, 1, 7, 0.92], [38, 1, 7, 2.73], [6494, 1, 7, 0.85], [8673, 2, 7, 4.6], [36, 1, 7, 2.89], [12271, 2, 7, 2.18], [5209, 3, 9, 2.74], [9784, 1, 7, 2.5], [10408, 10, 8, 2.29], [8676, 2, 7, 2.79], [1414, 15, 7, 0.85], [22247, 2, 7, 2.11], [2805, 137, 8, 4.23], [20498, 3, 8, 0.7], [34, 1, 7, 2.73], [9081, 3, 12, 1.06], [3577, 25, 7, 1.29], [95, 3, 18, 0.91], [10936, 2, 7, 2.38], [2878, 1, 7, 2.5], [24257, 1, 7, 2.32], [11812, 1, 7, 0.92], [10388, 2, 7, 2.43], [346, 1, 7, 0.9], [79, 1, 7, 0.83], [13928, 1, 7, 1.58], [161, 3, 8, 2.28], [13035, 3, 7, 2.54], [491, 10, 12, 1.58], [83, 2, 7, 0.79], [3576, 25, 7, 1.27], [10407, 10, 10, 2.59], [1523, 1, 7, 1.16], [19047, 3, 7, 2.58], [9069, 1, 7, 1.46], [9082, 3, 29, 2.42], [13244, 1, 7, 0.77], [972, 1, 7, 1.77], [7704, 2, 7, 1.96], [10937, 2, 7, 2.38], [37, 1, 113, 4.02], [12721, 2, 307, 2.85], [4253, 1, 187, 2.82], [74, 1, 212, 3.81], [11490, 1, 39, 2.42], [22317, 3, 324, 3.88], [411, 2, 117, 2.87], [12212, 29, 111, 2.57], [2104, 3, 368, 2.06], [1413, 15, 96, 2.5], [345, 3, 320, 2.09], [3979, 3, 769, 3.68], [336, 15, 40, 3.41], [11085, 2, 549, 5.56], [2912, 2, 388, 4.84], [8121, 3, 285, 2.55], [1274, 1, 80, 3.32], [201, 3, 304, 4.81], [1277, 1, 207, 4.71], [14037, 3, 318, 5.42], [3, 2, 125, 2.6], [13023, 3, 607, 4.28], [21269, 3, 318, 4.88], [823, 1, 44, 2.05], [38, 1, 113, 3.86], [6494, 1, 56, 1.97], [8673, 2, 286, 5.72], [36, 1, 119, 4.02], [12271, 2, 68, 3.3], [9784, 1, 77, 3.63], [10408, 10, 837, 3.42], [8676, 2, 307, 3.92], [1414, 